--- a/PCP/server/data/BestBuy.xlsx
+++ b/PCP/server/data/BestBuy.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shridharvilasshinde/Desktop/Spring_24_SE/SWEN 732 - Collab Soft Dev/Project/Pricconversion/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795416E5-6EAE-FC4E-A8AC-AFD906BAD982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$331</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="1382">
   <si>
     <t>ProductName</t>
   </si>
@@ -3287,13 +3296,886 @@
   </si>
   <si>
     <t>Sturdy build and reliable, a solid choice. | Lacks some features of higher-end models, but decent overall. | Had some issues initially, but customer service was great.</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71SmG-ube1L._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/vA7tYVjcwcGS7GSEiOcvOiAeVYOJe_WT46aFdlq2p2g/rs:fit:860:0:0/g:ce/aHR0cHM6Ly9pbWFn/ZXMtbmEuc3NsLWlt/YWdlcy1hbWF6b24u/Y29tL2ltYWdlcy9J/LzgxRDF6TExxWWpT/LmpwZw</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/YszUG7Wn9O3mvGYoWnr-uU1bMMiVoBMdVsrTzps9NRA/rs:fit:860:0:0/g:ce/aHR0cHM6Ly9zdGF0/aWMxLnBvY2tldGxp/bnRpbWFnZXMuY29t/L3dvcmRwcmVzcy93/cC1jb250ZW50L3Vw/bG9hZHMvMjAyNC8w/MS9sZy16My0xLmpw/Zw</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/_YoyFqc6yG4R-Ra2rMR8T3Vqhbqe_tkMXxpYOWj34pY/rs:fit:860:0:0/g:ce/aHR0cHM6Ly9tLm1l/ZGlhLWFtYXpvbi5j/b20vaW1hZ2VzL1Mv/YXBsdXMtbWVkaWEv/c2MvNjFkNmQ1M2Yt/MDMzNi00ZTM1LWEz/Y2YtNTQwMzg5Mzky/OTg0Ll9fQ1IwLDAs/OTcwLDYwMF9QVDBf/U1g5NzBfVjFfX18u/anBn</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/FUWt7dKDDkjyapNiwB5h4umFyV2Rv9NLyi51XgCTkrs/rs:fit:860:0:0/g:ce/aHR0cHM6Ly9tLm1l/ZGlhLWFtYXpvbi5j/b20vaW1hZ2VzL0kv/NzFETnNBRHZSaEwu/anBn</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/i-UiECBWZfWoe1-_lnt0phnfvBsyvC-8d6ea4BxBP7M/rs:fit:860:0:0/g:ce/aHR0cHM6Ly9tLm1l/ZGlhLWFtYXpvbi5j/b20vaW1hZ2VzL0kv/NTF5Q01zUENPUUwu/anBn</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/ED8uFb5UqJj7HsD2GZbx36gM2OXkYeAWRfBF65mB9wE/rs:fit:860:0:0/g:ce/aHR0cHM6Ly9pLmJs/b2dzLmVzLzU1Mjk5/My9icmF2aWEtNy80/NTBfMTAwMC5qcGVn</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/5p6g8MG-5kL9Grf5Avxzp7U2jrrAYHy3ZNHtmXg_AD0/rs:fit:860:0:0/g:ce/aHR0cHM6Ly9pbWFn/ZS11cy5zYW1zdW5n/LmNvbS9TYW1zdW5n/VVMvaG9tZS8wNTI0/MjAyMy9DVTgwMDBu/ZXcuanBnPyRwcm9k/dWN0LWRldGFpbHMt/anBnJA</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/PV8c7jpJ2wnuseCZSSWRv_r9hWNK7LUipiF9YUEo8Ys/rs:fit:860:0:0/g:ce/aHR0cHM6Ly9tLm1l/ZGlhLWFtYXpvbi5j/b20vaW1hZ2VzL0kv/NTFRaXk1OWtZQ0wu/anBn</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/ANsI2Hs-2ohrKAMS7du8ZtiSOHMv1ZtzV0jOpms_Dww/rs:fit:860:0:0/g:ce/aHR0cHM6Ly9tLm1l/ZGlhLWFtYXpvbi5j/b20vaW1hZ2VzL1Mv/YXBsdXMtc2VsbGVy/LWNvbnRlbnQtaW1h/Z2VzLXVzLWVhc3Qt/MS9BVFZQREtJS1gw/REVSL0FOU0YwUkU5/RlVQODIvNGQ3MDgz/ZDUtM2U1My00Zjk4/LWEwNjUtNDE0ZmFk/OWQ3NzY4Ll9DUjAs/MCw5NzAsNjAwX1BU/MF9TWDk3MF9fLmpw/Zw</t>
+  </si>
+  <si>
+    <t>https://www.flatpanelshd.com/pictures/mini-panasonicdt50.jpg</t>
+  </si>
+  <si>
+    <t>https://i5.walmartimages.com/seo/Sony-77-Class-BRAVIA-XR-A80L-4K-HDR-OLED-TV-Smart-Google-TV-XR77A80L-2023-Model_694a8ddc-61af-4ee8-952f-5e09bb9a4558.4cd407a71d27a6c9957d58c28d68b7da.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.samsung.com%2Fus%2Ftelevisions-home-theater%2Ftvs%2Fcrystal-uhd-tvs%2F65-au8000b-crystal-uhd-smart-tv-2021-un65au8000bxza%2F&amp;psig=AOvVaw2k5VczJ25N8YFsonUVMWXI&amp;ust=1713542992095000&amp;source=images&amp;cd=vfe&amp;opi=89978449&amp;ved=0CBIQjRxqFwoTCID9u5yTzIUDFQAAAAAdAAAAABAE</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/eg_en/images/tvs/md07528248/gallery/OLED65A1PVA-v5-S01.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTdPoDkfJ8pYu0blDk9lNO_Ik4MsLHTcwyHB9LlQ2dAJA&amp;s</t>
+  </si>
+  <si>
+    <t>https://i5.walmartimages.com/seo/VIZIO-75-Class-Quantum-4K-QLED-HDR-Smart-TV-NEW-M75Q6-L4_05ee509d-14ff-46d4-90a4-8b1c5f71eaea.cc5231855335c3e9832c30d411672185.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEBASEhAVFRUVFxUQFRUVFRUXEBUPFRUWFhYVFRUYHyggGBolHhUVITEhJSkrLi4uFx81ODMtNygvLisBCgoKDg0OGhAQGi0mICUvKy8rLS8tLS0uLS8wLS8vLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAgQFBwEDBgj/xABPEAABAwECBgsJDwMEAgMAAAABAAIDEQQhBQYSMUFRBxMWImFxkZShs9EUMjVVcoGTsdIVFyM0QlJTVHN0krLB4/Alg+EzRGKCJEMIovH/xAAbAQEAAwEBAQEAAAAAAAAAAAAAAQIDBAUGB//EACsRAAICAQMDAwIHAQAAAAAAAAABAhEDBBIxEyFhBUFRFJEiMnGBobHw8f/aAAwDAQACEQMRAD8AvFCa4QwlDZmh880cTSckOke1jS680Bcc9x5ExGNVgP8AvrN6aPtQEwhRG6iw/XbP6aPtWd09h+u2f00fagJZCid09h+u2f00fajdNYvrtn9NH2oCWQordLYvrkHpWdqN0li+uQelZ2oCVQovdJYvrkHpWdqN0li+uQelZ2oCUQovdJY/rkHpWdqxuksX1yD0rO1ASqFFbpbF9cg9KztRulsX1yD0rO1ASqFE7prF9ds/pWdq1Pxvwc3PhCyjjni9pATaFBbssG+MbLziL2kbs8G+MrJziL2kBOoUFuzwb4xsvOIvaRuzwb4ysnOIvaQE6hQW7PBvjGyc4i9pG7PBvjGyc4i9pATqFBbtMG+MrJziL2kbs8G+MbLziL2kBOoUFuywb4xsvOIvaRuywb4xsvOIvaQE6hQW7PBvjGy84i9pG7PBvjGy84i9pATqFBbs8G+MbLziL2kbtMG+MrJziL2kBOoUEcc8G+MbJziL2ltsWNVgnkbFDbrNJI7vWMmjc91ASaNBqbgT5kBLoQhAV3s4fEIPt29XIqYhY0nfOydVxNTquVz7N/xCD7dvVyKtMRvjg+zf62K8FborJ13ISmfTw0KUFbgSwuj6fyZdXwVGEsFW0CpexYDkeAXnIGgG93JoWWVQxK5yomM3LhFIhwSg4K+XYBaB/qO6ExtGDnsvByhyHkXJDW6WUtu+n5VGjjNK6KWygs5QVvhySbTTOCrZdVpsUts8iTLQxZpq4wKiqFgkK5rPOH96a69Y4wnDSuqEIzjujK0ZSnKLqSplIE/yiSR/KK9mpbVbpeSvV8HnfCsjmsIYxxLrt61xoNJu/l650WOT6GT0buxermrYONVeLyOr4PJ3ckn0Mno39iO5JPoZPRv7F60CWFHS8lup4PJHccn0Mno39iO45PoZPRv7F65CWAVHT8jqHkPuOT6GT0b+xHccn0Mno39i9fALPnUbBv8AB5A7ik+hk9G/sR3HJ9DJ6N/YvYFFmibSd54+7ik+hk9G/sR3FJ9DJ6N/YvYN6L9abRv8Hj7uKT6GT0b+xHccn0Mno39i9gFJPGmwbzyD3HJ9DJ6N/YjuOT6GT0b+xevTVJKnYRv8HkJ9me0VMbwNZY4DlIXU7E3hrB/lv6mRW9syeBrT5UHXxqotiXw1g/y5OpkVJKi8XZ6mQhCqWK72b/iEH27erkVaYi/HB9m/1sVl7OHxCD7dvVyKtcQ/jg+zk9bFpj/Mik+GWIAlUWQEqi77OYlcXbGHvLyKhlKeUc3J2LqFA4sPGTIOEHzU/wAKaL18t6jqF15KXsduGP4FRiUplMVvkemk718/lkpStHXCJEWsBrjwqPleDeDVPrY6pXLWyR0MrgDcb6aKG9ZSx7u6PT0kd7cR1NK6Nwc00I5DwHgXS2GcSMa8aRWmo6QuPmtIcFOYoz5Ub2fNNfM7/wDCva9Azzhl6T4f9lPVtMpYOpXeP9E+1q2tamj8IQsNHSsBFxGUKg8OpOoJWvFWuDhraQR0L63en2s+aeKaVtOv0NgCW0IaFsaFDZUAEsNWWtWxoVWyyQkNSw1KDUsNVGyyQgMSg1bA1KDVWyyRryVnJW0NWclRuLbTTkrBat5ak5KbhtNOSkli3FqSWqUyKNJakkLcQklqsmVo4TZmH9GtPlQdfGqf2JvDWD/Lk6mRXFs0D+jWnyoOvjVO7E3hrB/lydTIqS5Lx4PUyEIVC5Xezh8Qg+3b1cirXEH46PspPWxWTs4/EIPt29XIq22Pvjv9qT1sWmP8yKT4ZZVFshhc8hrRUn+XpNF0eCrMI2V+U68/oFbWapYIX7vgwirYjB+D9qqco1IodScSHhK3OTWVy+VzZHkk5y5N+FRqkedZTSe0EZ1ukemNocudxUuUSsko8MbzPqubw6/4X/qP1U/G8VyTmOY6iuewlZWh5Ekjtt+UGtDhmFC2pFxGbOVCw9z3PSs8Z5LfNEY6amlbHYRkijMbCWmWhc4XO2u8NAOitSeKilcE4v2S0PYe6XOew5W1loZWgNxaa5QrQ3HQovGyJzbXLUAd7SnegBjaAarl6WPTPFFZL57dj2seow58/QrhW7VfFdnz8jgWYMYANA6dJ5U0iwjJZ3h8bqEchGojSE9sdtbJBkkDKF9dYpmULbXXpuaacWdGOG9uM0W7gLCLbVBHK0Urc4fNeLnDlUk1q5HYyYe5JCcxmdk/gbVdkAvew5HPGpM+F12COHUTxx4T7AAtjWoaFsAVmznSABKDVkBLAVGy6QBqUhYVS1GViq1zzBjXOcaBoJJ1ALh8P4dnezbI5DHHoySKkaDlDOeJUnNR5Lxg5cHeVWVSFox8ttlcXCUvY24iQZYr80ZnFxu+UM/JYWKOO0duLYns2qctLsiuU0hpoS13Bdcc3CkckZImUGjrCEkhLBQrmdGkhJotpCQQrJlTg9mof0W0+VB18apnYm8NYP8ALk6mRXPs1j+i2ryoOvYqY2JvDeD/AC5OpkRlkep0IQqkldbOXxCD7w3q5FW+x38e/tSetisfZz+IQfeG9XIq42OPj39qT1sV4corPgtKNtSOMetdGXrnaKWbPUArz/WL/C/buYwNz5E3kekvkTWWVeFdmhmV6YzyLM0yaPfVWSKPua3uvWnGuy5dnjnAvYdrcdJYe9rxH8y3UT11H2K1RnTG5w8poyh6lc7PT8rxaiMkV8bReCXEOF7Xt79pGYnX6/UneFbbLPkyvDTvRGXM71+TfU6nXk0uIrmooy071b7C8sBp8qmUDe1w4RpWqm4x7M+3UFvUq7oQx5YA4ZjUV0VGccYuu4VpibJNKI2MynONGgXuJ4tA4VJQyNqRkBzXd8wnOBpa7OHC+h0cIrXrsR7DkPldDQjJymGlKkEVjk+aaH1ELTFU5pfJXV6t4cblXf28nU4tYK7kssURNXAZTjoMjr3U9XmUs1qRZpA9ocMx5QcxB1EEEEawt4C9+KUYpI+DyTlOblLlvuACWAgBLaEbIMtCUgIVCyBYWVhCTk8MWjbZHgneN3rRU0drJGbOuZwsSRkg0aM9NHYf8LqsLYDbG50zXmhNSxxuBPzTq4FF5EcrTvmgA1cRTPoHAP8AC4c0ZPsztxzio9jg5rI3LjGTXJLnEHNtjrx+HXwKNiwx3NbLK6MkirWktu3rnFrySM5N/Bpv0TWMVlke1ws+TIKuHwbg6sgpVjyLhnqbwLuAqLxSwa73Rha9we5rnOfTMC3ehuq6/NqCzjcVbEvxMvrBVsbNE17cx/RO1F4uRhsFB8+T85Uou/G7imzklywSSEpYKuUZwOzaP6LafLg69ipbYl8NYP8ALk6mRXXs3+BLT5cHXsVK7EvhrB/lydTIpCPUyEIUElc7Oh/8CD7w3q5FXGxr8f8A7Un5mKxtnXwfB94b1cirnYx+P/2ZPzRq8OSsuC1wErKIF3IlAJbWq+fFHNBwkYDN1rB0ppLaU+teDRJeDku1jMeMKImsMrdGUNbezOvn8np+WD7K14IckuTD5qpIem73ZPfXcdyT3U0aVisM26UX9iNy+R8Cl2kExmJjm7ZIKNa6tC2oqDTMXCoBvoTVRUmECO9u4dKZG0kEOF7qg8JNda9PSekym92Xsvgo9WoNOIzwZgaa3SFkUZGSaPc4jIZ5WmvFVIwpZhZpXQiVj8m6rCCPPTvXawo7CducLXaZGfAlzntewyNrV9csXaCSbqrbgyNsoAbSualReeALiyQjBba4Z+iabLvfUcqjXFd/uzZZrOZXtoHk1pksBcTwUF6tPE3AzrGxxk7+Qio+SGjvQTrvJzKryXWeRrgclzSCCCKgq28GYb22CN+QXPcADoblcOcgf9aLbRxg5bm+64OH1yc9kVGtr5/3wSAeGSVHeyEVHzZMwcOB1wJ1gaypFoUPLZJJG0klYyvyQ2/JOjKrfpvoOJOoZZ2A1ayUClCx1JCNNQd6SOMV4F6ak06aPmZRT4fckQEoJtHboyckuDXXb1xAcCcwonSm7K1QIQhAYKCgrDigI3C1S5rSLqE8bs1KedcXhbBLbTK/bhVjCDHELou9rluGkmvRwlSc2MG2zkZLskbxrhXIN+u4tN14ok4RjyaSCtDRvBmoKfhcsM/5TqxRcZJMrvDeCWWWRj4KQucS2rR8GQWmrXszEEXa77lK4tYSg90njJPwb3xtNBluDI6XgXG+tOCixjfEHx6yCHDygahOMTsVTPS2hzgcsNDA2jtsYKh5e497eAc9RXTSnPGLlD9zTK0pFqYLhLIWB3fUyneW7fO6SU7WAsruSpUcL7ghCFIOD2cPAlp8uDr41SmxN4awf5cnUyK69nDwJafLg6+NUpsTeGsH+XJ1MiA9TIQhAVvs7+D4PvDerkVdbFvhD+zJ+aNWJs8eD4PvDerkVd7FPhH+zL+aNWiVlwXA0JYashqWAtNxlRhrVG4RJiNfknToB1H9FLNaluiDgWuAINxBvBHCrQybXZSePeqOIwo5sg9S518haaLt8I4mtfUwzOj/AOLhls819RylQtqxFtTWPcJGSFoLgxtQ99Pkit1TwldazYnyzz56fNfZEDt9U3teFGwCud+djdGVoc7gHSoK04ZeCWhmQQck5Q34IzgtOY8BUa6Qkkk1JzkmpK4tTr4pbcX3Pc9O9Dm5LJqeF7fP6+Da55JJJqSSSTnJN5J8634Lc/bHX72l+utbqLRY7PJNI2KJhe9xo1rRVxP6DhzBdHLizbLMSx9llrXOxhe08TmVFF4zTrg+xhlgppOVfuNLS7K0muuqtzYne51hOVmEjmt4QKV6fUuCwHiRbbU4ZUToI/lSSjJNP+LDeTxgDhVzYJwbHZoY4YhRjBQazrcTpJN/nWumxSUtzPO9Z1mKcOnF27+w8AWcgahyLICUu4+cSG8tijcCHRsNbr2g3LUcHhraRvdHqpRzR/1dUUT1CikWTaIyPulnfbXKOAGN9OUtJ5E4bbx8tro/KF34hUdKdrDgqtP2ZLlfsR0+HbMx4Y6dgcc1Td+LNXzpUmGLOBXb46cDgTyBVpjdiXaTO4xguiveJSWDaogamOgOU7zC+gqVjB9hEUTW7eXXXGgF3AL1jLNKPKOmGCElaZ0T7EyaUzVDbnPoLmku70uHAK6b68CzhC3jIMTKZFwyjwHKGSPOb+FQM2FWRNyS6vBXORpoo3u2a11Fnie+hySWjeg6i40A5VjPO5rbFHR00ncnxwIxktIyc9wpxm/Qu12L7W0Wcw31DjI2pqCxwFcniPrXMYNxJlMsMk8gBa8SbWKPG9Ic0OJuNaHMpqzvFlnowXtJIArRze+DaeQ97NXwQXTp4OMWmcuompPsWGFlIglD2tc01DgHA6wbwlrY5gQhCA4PZw8CWny4OvjVKbE3hvB/lydTIrq2cPAlp8uDr41SmxL4bwf5cnUyID1OhCEBWuzz4Pg+8N6uRV3sTeEf7Ev5o1Yez34Pg+8N6uRV3sSH+o/2JfzRqSGXS0LY1awtgUWVoWEsJDUsJYo2NWxq1hbGqLJ2kRh3FKx245U8AL822MJZLThc3P56qAj2JbADUvtBHzdsbTlDKrugUsFVcU+UbQz5YqlJkdgLF6y2JpFngaytxdeZHeU83lS4K1hLBUrtwUbbds2ApQK1hLCmyBYKykrNUsGUIQpAIQsF1EAELmsI4mQSHKYXRZyWsIyHeYg5JuzjWpq34SjgyMskZRyRQE38NMwSrNb4pRVkjXCuRcflUrTjpeqyjGXJaM3F9mV/gvBVnFokjkiq5pBjLhVrmgZ6Zg6oINdI4V0GDnDINKUBc26gNQ4j1X5ku2QNbaHmlbiTqyaV9bkzwSSGvF/+ofOSA6vKVnBUjfLLdTJJ9CD5qafOucxvYWOjmF1d7X/mw5bc/AZBxLoS4ki/RWvGf50JhjLZdssrwBVzQJGcbBlUu1gUpwraPJgyUxatjdre2oDWUe2tABG8E8gId0LZLjXY2iptDc9Lg40PDQXKtbPhDbAGg03tNHegg09fItRsgFQSSNWhUyZYwdMrTfBau6Gy5Idt7KG8GoFfMUzmxuszflg8VT6gq13o09P6rWZW6L+TRnXLLWL2LbGSmyzjNFacFWiJmcuiOb5srDn8yrHYm8N4P8uTqZFM44WlrrHKARnbcOBwKh9ibw1g/wAuTqZF04cjnGyrVHqZCELQFZ7Png6D7w3q5FXWxGf6kfsJfzRqxdn7wdB94b1cirjYiP8AUj9hL+aNPYF3ApQK1BbAVluJo2ArY1aNsA0jlCBamaXt/EE3Ch2EsKPdhKFueVn4gfUtZw9Zx/7a8Qd2KLJolwlhQTsZIhma8+ai0SY1AVpEfO4DlSyDpwlBcNPjhJoyBxX9qbnG6b53/wBR+qhziuWgWIFnKAzlVnLjNO7/ANjuWnqTOTC0hzupxntVXngvcUy1pLVG3vntHGRVNZcNwNzyDzKqH4WbmMwrqygFo904zmcDxVPqVHqPhMUWjJjXAMxqf5qqmM2OLfkjoP6kKuu7ye9a48YoOm9DrU6l7XfiDR0VVXqJeBR202OD9APQPUoDCOEJJ5WyGRzcmmS0OIbUaaHTeoNtsF/+mONxPLcAm1ow2Gg5Lsql9GMOvWqfUTfA2E5MzLplvc6mYOc4gLbAQ0XGmm7WBSvHwrlY8NksBdlNJoKHJaK+tO7LhVxc6OKBrntOS58xkc1tM5yRvQAQc9SaeZUeTI+WWUEWBgSQujlHzQ7WTfSgPIT5wpTB7N481znK5A0Vrr7ConFOQPjldcfnGgGiho0C4XGg/WqmMHuplN4f0zetdmn7ws1zVupGytSOTTpz3jN0Le41B4RmIv5Lqfyq1DPo1+bPX1ciy5/YOMm/NqqtzErGWHaLS+Op3rnAV+ab29DgmL8InPUnTmaB+pXTY82UxywSjTvCb++ZeK+a7UQNKrq1257HkX712SaitaHP5v1XPq4btrRW2iQteEyat1jRXNxpoyUVJFam6oqa6jddf+i2RW8PoHM0nfM1VIA1HTqTWZj43kmpa68GoDdIdeeAG7XVccYLgOTGuHHHaZBxa61qLiFnYl8NYP8ALk6mRM8LhwY/K4xpBBNbjpoa8vCE82JfDWD/AC5OpkXfp1USEepkIQtiSsf/AJAeDoPvDerkVQYm4UdZbSZW59rczNU74t18St//AOQPg6D7wzq5VReD7YYX5QbW6lCSPUolbi6C57lkHG2eQ0D38NBSnDckPwm457QdensXGtxiP0LdPyjp8yUcY6/7dmamc5qrmis6/wAjR9NnYx2tmmbK4Kn1LcLdHoI5L1xDcYSDUQtF9e+NK8NyxuwkGaFvHlGvqSSzv2/kj8B27sKACuSfMEHCDtDHnh3oFNedcLuulv3jbzXPm6EiTGqQ13gFbu+zcVRxqjx5n8C4ndi2yOGY+d4b6gkF7yRVoGur3HopeuB3RyX70it1zzQX1uuWx+Mz3CjogeN7q8oCo9NlY3I7kPcNLPwmvSVh9oABrOQdTWtrdwXrh24yEZoG+d7j60vdW/6Fv4j2Kv0uT/UNy+Dr9tY4VD5HVuvcW+fRpuSWMjNMqM1vNHGt2i851yjsbHkf6LePKdX1XrUcZnUptQ48o19Sn6bL8/yRu8HZl7G961oppz/zOthtBIyWhtdFBfXNd2cK4mPGh7TdE3XTKOfkT6xYUtMzS+OzNeKlhAkAIo0EmhvpeL+FQ9JN/wDSNzJmGVzBRz3Xki8imdxAqOI/y9aLXhYNucK5tZvv82hMnz22hBsWar6mQV5dOboUDJhgOzwjX359dFeOld20Q2zp32poaXZgaGrRcC6mfj0HUm8pMuWzLcM4qLiNFK+ccujRCMw5RuSIRSgbe8mpaSWnNnFacQC2x4xkGohbfn3xv5ArfTyXAXPc6TBFihskT5pIxNkFvwZqN86u+kNbhW4C/OLrwpq24WltDYaARbZlhwjBZHUZRyyR8ktjeTWpq0VrUAcVHjg8PytoY4Fhhe0uORIwim+FM9wvGkArMeOLmsYxtliAbW8ue4kuLS7Kyq1qWA0zVVZaecu7RrCUeGWFixjRFZzLtjHlji1se1hrqMjaQagkXkjRW+q6LB+NVkc+omLM4Ika5lNVSai8V09qpE4yvLi4xgnNTK3oGgBoFAOBLGNDq12huanfO4ODgC2hHJBUkjOU23Zfdpw5ZQQRa4q5u/AJr06Ampx0wc3/AH0LiL6MO2HTW5tT5lRcmMhLcnudgzgODnZTQc4F3rSW4eZQVsULiNJLq9AWi6nuiY0/zMtbD2OVgtkToYnvc4Frw57CxtRWtMvfG7U3zribXMGSPc472+tL/lOF4z0oQKaSFAuxj1WdjaXjfE0PBlBNvdfv/gq5QyTV5O90DNo151E4ymkmRJK+x1OC5g9zC0XFhc5hLTcw1L20FXDOKZOvOn0VpyyWPDSx1KO3oO25u8rceLPpXH4OxidZy0xxgZJBFXV05jdmpd/lYdh7vv8Ax2gOBFA40FSS0i7O0moK55aaTZVok8OuO1TNIAApQXfOANOjk5M7EvhvB/lydTIoPCOFjO57nMALqVobsoC9wFLidKnNibw1g/y5OpkXVhg4RphHqZCELQk4vZaxdfb8HlsQLnxPbO1jc78kFrmjWaOJA0kUVDjFK1/ULXzef2F6sWUB5T3J2v6hbObT+wlbk7V9QtnNp/YXqpCmweUpcVbXS7B9s5tP7Cb7kLb4vtnNp/YXrVCWDyVuRtv1C2c2m9hG5G2+L7Zzaf2F61Qlg8lbkrb4vtnNp/YTa3YBngZlzWW0RMqG5UsMrGZRzCrmgVXr5VPs9SZcNmgyiL3TkCl+TRra/idyICiPg9Z6exHwes9PYn/uYOHoR7mDWehCBhWPWensRWPWensT/wBzBw9Cz7mDh6EBH1j1np7FgiI6eg9ikfcwcPQse5g1noQEeGxfwf4Wax6z09if+5g1noR7mDWehAMKx6z09iPg9Z6exP8A3MHD0I9zBw9CAYfB6z09iPg9Z6exSHuYOHoWPcwcPQgG9ise3vEcLJJHmpDI2Oe8gCpo1oqVJbkrb4vtnNp/YUniOwWbCFlmyi3Ie0nNe1xDXA8FCV6jQHkrcjbfF9s5tP7CNyNt8X2zm0/sL1qhLJPJe5C2+L7Zzab2EbkLb4vtfNp/YXrRCWDyXuQtvi+2c2n9hG5C2+L7Xzab2F60Qlg8l7kLb4vtfNp/YXb7EWJNpGEY7TNBNCyzhz/hY3xl8jmljWtD2ioo5xJGoa1fqEBhCEKAZQhCAEIQgBCEIAQhCAFxWP2Ihwm9j22kQuY0MqYtsqMon5w1rtUICm/eVtHjRnNf3Ue8raPGjOa/uq5EICmveVn8aM5r+4j3lrR40ZzX9xXKhAU17y1o8aM5r+4j3lbR40ZzX9xXKhAU17y1o8aM5r+4j3lrR40ZzX9xXKhAU17y1o8aM5r+4j3lp/GjOa/uq5UICm/eVtHjRnNf3Ue8raPGjOa/uq5EICo7BsNSMkDpMINe0Z2izUr59sKttoosoQAhCEAIQhACEIQAhCEBhCEIDKwhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFhUXFxcbFhgXFRcWHRUZFhUZGBcTGBYYHikgGholHRgYITIiJSktLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGzAmICUtLS01LS0tLS01LS0tLS0tLTUtLy0tKy41Ky0tLS0tLS0tLTAtLS0tLSstLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xABLEAABBAAEAgYFBwgGCgMAAAABAAIDEQQSITEFQQYTIlFhcQcygZHRFBdCVJOhsQgjUlNicrPwJCUzQ8HSGDQ1dIKDkrTC8RVz4f/EABgBAQEBAQEAAAAAAAAAAAAAAAABAwIE/8QAKxEBAQACAQMCBQMFAQAAAAAAAAECESEDEjETQQQyUWGBcZGhIiNCQ9EU/9oADAMBAAIRAxEAPwDuKIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCD6a8ddgcFLimsDzGAcpJF24DcbbrkbvT9MN8DH9s7/ACLo3pf/ANj4r91v8Rq+WGwkkWdzQHffnsER2D/SBl+os+2d/kVD+UDL9RZ9s7/ItMx/o8nhOWWaKN9WQ9mIawdnNlGIMXVOdWmjqvQEqOw/RNwhinxE8OGZMCYRJ1jnPANZ8sbHZWftGkV0P/SAm+ox/bO/yq4z09TkX8iiA7zM7/KtGwno3xkk8uHBhEsTGvDXSECVj6yPiflyuBJAFkGysGfoxI2Nj5ZoYQZnQlsnXNMUjAHObIBGaoObqCR2h41UdCPp/n+pRfau/wAqD0/Yj6lF9o74LR+I9AsRhzN10sDGQtjcZC6XJJ1oJY2JwjOd1DYf4FanaiuyH0+4j6nF9o/4K8305YsjN8hjre88m3ftsuMNBB21Um3EzSFzRby/6PrXyGnl7l3jjL5cZZWeHU5PTriW1eEgJIvSVx/AKN4p6ZsdicrYQzC06nPZUl3oNJG1putSwXRWeTR9R3tfad36NbZ96rJgcPA4syulcKqzkFnmQLd7Oyplqcue+twwPpL4lhJC6aZuLY5pADwyINII7XYbZWd8+uK+pRV+lnkr8FzaJ7jIQAHXrlYM1eZBND/iWS7DSVRZQ/aIB05UBX3qXLG+Fly92+fP3idvkUR/5j/gjvT3iBvg4ftH/BcwmhF7jyBOn4qcwXRAy4Zs7XEZmzu1ZbW9QXWHPDgbOXSmncJp3tuPz/Yj6nF9o/4J8/2I+pxfaP8AgtFxHRUNw/X9adII5jmjys/OVULZL1ko2G1qGlWm9FzlwznzMYJZGMkFWcOZm54DIAdQ9na8ADeyit/+f/EfU4vtH/BU+f8AxH1OL7R/wWgcP6KPfIyKR4je+eSENLSf7FpMr+WgdTfEk/olYuG6PPfhHYkOAIzObGQbfExzWSSg7U1z2itz2iPVKDpPz/4j6nF9o/4J8/8AiPqcX2j/AILnfRTo2ce58ccjRK0NcGuBAcy6kfn2GQEOI3IutRrLv6CtHWVO+QsmZDligL3F72Pf6ubk1tnz8EG3fP8A4j6nF9o/4Lpnow6Yv4rhZJ3xNjLJTHTSXAgMY7NZ/e+5fLvGOGmCeSEPbJ1by3Ow211fSHgu+fk5D+rp/wDenfwYldDq6IigIiICIiDS/TGf6mxX7rP4jV8rB5zAnXXY8/BfVXphbfB8SDz6vnX96zmvmqLA1udfI2fAlWRzllpt+C9IkkeZ0cMjLDgI3YqV8IzAiuoePVAPq5gPDkoV/SWOSCCDF4br/k7S2J7ZjE7q7vqn0CHNvY6FRkrA0drS/afYOf4eKiJJOQV1HONtbZiunbpXYl0sDT10UcTAx7mCCOFwdG1mhJIc0Gyb3WH0j6aT47DwwzhpdESetGjpLaGjP3kBoF86WtLIw2Ec7kubdO7ZJuth4v0iOKweGwohLW4bNld1r32HWXAtIrnp3AVsovAcOe5/YZn1oHkD3lSfBOB5+04ZWDckgAnu3C2PAwsI6uNz3DTswNr/AKpHbK42eayuWWXyxAM4XDC4Gdzi4myxtNA83esfYFN4TH5m5MLA9rSdCwCz+8+qHkT7VMw8Fw8Q62Xq4qO7yJH+bcxyg+QU3w/juFa3SstHVxs6b6be5S9TfGBZqcoXAcCxcjNS2FvmXH7iBfm4+S9DovgoQH4p5e47Mc7TTllbQ/8Aay8R0vjecmHDpTr2Y23X7z3U1qhZIp5XAzPZFlGjW/nX6+NVe3eBS7mFs5ZXKw4njbaRDEyGMD13ENbXhsD961h2GMugzSXrmogDwFarbY+HQF+rHPdqS5zS5xrn2u2T5NCpxTixgAZDE3Mdg5wFDvyiz7yCtPTkhj1PZp0vDzGcoGU0NCCXa8w3f3hMN0jmjDGMyXHnEb3sYXx9ZZeGvPi48irWNxBdITM0FxBBpwI120A1q+87LBfFWuTQbkaVe1rm4WtJmuy8bxBYWHKWGOOItLARliNxmj9Ma9reiRzV/F9IMXK2YSSl7JgM7T2mtpwc3K3aOiABVaFRUz6O9qZ4bxSNkcQdIWhhk6yPKSJw4+qa7JsdntbLm4yNJbViXpLiXYiLEueDJE0NYcorQEWR9Jxsknck2qwdIsWzI1r3BrIjGI6OQxlrmuzRbOvM4kkbm16ZPGX4WQPvqxEHsyOvsSFzjdUdPFZrnAyzOExZniDWv/PHKeuY+u12vVafDVSTfhbZPKF4bx2fDscyB/V53Mc5zQM5MZzMbn3yh2tDcgXspaTpZjJyAXNZ+djkzMY1hD4w4MdY2oOI7q8l54pg2uldINby3pRcQxoc8gbZiC6v2l7w8BaLoV/PNa49Lflln1pPDAx8L3ymVzW5nuJIY3I1rjzDRoAdT7V3b8n8AYHEUK/pR0/5ENrleA4bnGY2O7XfzXYfQthxHhsS0fWTzvUwQqdTp9vi/hel1u/izn6uhoiLFsIiICIiDTfS8P6pnB5mEe+di+a58a2PRlu0rWtHd/l4L6M9NriOC4kje4f+4jXy5HGXHTbmSaA8yrvUcZY7u6rNiHOdZNk/z7vBeGx2r+HwZe7KzXvOwHitn4f0dDRbna99KbcdTrY4ITBcNJ1I8VK4TAPJ7Ayjm5w/8fjSzpZ2svKAXNrfl3mtvfajcRxckkeub0rb2DZcWT9Xl9TLPnW2xCLDRkdf+cOmmwJ8gQKXjjHS0xERwBjBX0GgnyA2HuWoPEkzgHXrqGgWaUzhOjMje3LKzDx6et2pCD3NCvp3Jpjjl/ll+GFjeJvmIc4VW75bJHfp/wC1J8Lw0kz8widLYoPkJDRpWjARY8NVnRO4dhu0D1jubn293hTNh7vaqO6eZD+ZZROgkdqRpyaewK8iVthhqa3p37ajZYuFdTDnxLskY5B3VR66AaVf3b815GLhyZYs+St42dS07aGV4zO9gKhsRxLr4mO61j5W5nDO5pvSqzuOm9Vl5gKAdxXESuzMa/QCw0kgDeifoir7l6vTmPl5v6rvtid4v0pkiDooGNjGziGnM40PWcaJqzyG61DFTU7M5xLs2h5Obz577LaODdGDNCJ8Ti44YCboOD3knkByK9ubu3hsLYxpmxEpBeb5Au0jsd2qzysnh6MMO2d2VadjAWEWK0FeVWDSsRyPe7K1pdfLdbW/o/FHrips7ibIzkWfM9px9itP4xFCQxjKbsAARptec2Ss7lb9mc62F4wm0XguAzEtLw0C9jz8DSyzwWOMkvGYmzqQ1vfQCkY5JJyW4bDufoLe4kNB/SGw9v3Lxjejc+Umedlt1yDWvaKAvyWOWWE813PVy88IprmigB5934LzkkdroDelc1IslwcIAcHSv566AjlQ3UNxHiLpHkxtyC9AwEUKAy37Fpj1t/LP34dTpX3rNgia2y+RnLN2vP235L3PxQAU1hcBWruyPHQ6kKCijdRotby11cfxP4L07CEavBNDvrnSvdlfdfTwl5SGI6RSvBY00DQ7Io+IGuy7f+TxIXYDEFxJPyp1k6k/mYdyuG4fDtDT2M7q5AgM8S4mne0Fdx/J2dfD8QT9ad3fqYe5TOaa4WezqiIizdiIiAiIg0T04f7ExPnD/wBxGvmzhPC3zuDR6t+/y7yvqP0nwNk4c9j9Wukw4Pl8ojXHeMYCONttJAbVlxGp5Bosa7b0r22+Hk+J+I9OzGea17G8OGGZmj1cw6irG+odW/8AOqpP0kJbRZQ0tt1m05nu8l6kgkltrcsbLPb3Lh53lA8gofFGOMlsYBcN5HOzX4NAGiuXSvmscMJn83NXTgZp+01tAi9wxoA3Ovl5lZWC4NHRzyF5bWYRUGtvvleQ0a6d+6wZ5HSZWh8j8g+m6mjno3uvvKtxRfRb2iTqboA1tasx1OHpmpNNl4dxWCO6BiI0aImNL3ftGeQUPY1WosIJXvkmdTDrme9zgB3Emi/zte+EdE8ZL2ooWhvOaY5WjxBcK9wPmpKKLhkDh8txT8Y8OGZsNiJutEl2heB4UNFtLryyuc/xY7psJJH8mja+cmuzFHqDyI008/FYeH9HOI1fK4QRC/XIc4C+Yaco9rgt4xPS3DMaYcHBki016vK+S9jFG3VwuvXI0vwUBxDBYmcZ8S5kMI1aJTVDfswi+1feDrsV5+pnbfGmWXWzxupdfzUVgI+FYUuzddi3gaHLlicQfVFUXd9nTRWJ+kmImzQ4aPqYjp1cYF1yJoAA1pYF+J3Wfg+BBzgWh7xY7Tm5b3qm3Y7NHetVlRYWCLEZXzGNuUhxY4PeacMraAOp1qmnl7J3ZdvDr1Mr4n5qD/8Ajpg0Omka0NFDM4XQ5d+nLmpvo3hnOLm4WNzydHyEENA5/tH2kKSg4rgmODWYKeaSzrKwurueQ+yAPEN8lTE8Sx0wq2wQtN32Q670DQDQFdwvdZ4zr53U/dxcNz+7fwtYjo6yN/WV1snkX5dOyS0DK32k+at4iKBzmvcGuk0GYtLw09za0B39ULE4hxQQgdXO8kCiy7Dr1cTe3LcXuoA9IIS/rHCd7xsHSNaPaW7N8AF3/wCOTnqZ7/hthnf9eP5bXjOLyB3UtaWVqAxlucAKpoB8dyVrvEMKWi8S9sNnRrnlzz/yma35+0rMwsmPxDKYG4aE/otcy78bMsnvpZWH6N4bDDPKLP6UxABPeIxqfab8F3MsceMY4y60x+e7v0jSsRLGDUQuzo54Fn/hGnvKuvlnIawkDcEBjWFv7znAKa6R8RDm5WUC3ckCPNroRHu2tCLpa6zBuk7T3ECrJPhzK5yzkbdO3Kbs0sdaY8zdCdr3De8tPf4qgaPWcSb/AJ3KyZsOGNq9fIaDx8T3K9gYoHMJme4EDsgC7Pcfw9q6mc1ttOUd1uv/AOk/f3r6D/J3/wBn4jSv6U7+DCuNYOSNh/sy7tNAaCG2DZJPMDbx12XcvQfXyTEEEG8STTQQG3BD2Bepra+a5vUtuq1mGpuOjoiIgiIgIiINP9LE+Thcr7IqTDmxuP6THsuGFrsQ8dU05Ny+UnLVdoVdu9h9y7f6YGtPCZg66L8PdCz/AKxHsDuvn9sWIlkytjfTRQu+y3u0IDB4aea9HRwyynDDq9OW9zGxswe4iaYMaP7uBmbQcqBDQfNxVqODrXhmDgcTXM9a8jvNABvLYCu9SeB4HA1+WVzpZNfzMA6w6a6yXlHsK3fheDxxZkw+GgwMPN8tPe7xyjs3535qZY/fd+zHqdbDpzygeCdAp3jPiJOqjGrqLTQ55n3lb7SfJSmFxuDw7jHw3DHGzDeTXqmH98jteyh4qRl4ZBlJxWIlxjxQyuc4sF7BsUdN96yDjXxR/momQMbtmAaB5MH+NFZzD639ngy+Kufy47/Xif8AaheJ8Cx2KaZeJYwRQgEmKMChQ9VrQQ32mwFgcE4hgsM8Pw+DEpbeZ8pMzqA9doDQxv8AjspaSYSevc5I/vC6hX0xC3WvEj2q3hcN1oLOtYxtHMxmRobVElwYcvhqbXPbj3cvR0Z1Mp/V/HEa9BiZJJZLa9jC6R7MraeXP/uw8eq3XkDstnlYyF5dho2AuaB1sluLXG8zg6QGRxF/sg9ys4LCR7ROa1tO/PSasa4eFU49wy2e/msXivEomvqN807w2yyEZA7xe8F0hb4E0tMe26evsmLIlw8LB/SJw5zhtLmZmB3AZZkI15jWgsqN8EcLSXCNhdQBblLxpq2JpzltXRJ17lpHEZnZ6LGRuc7UCXO7tCwSSTQ8z7Fc4jjQyJpjIdKfXI7RDRYy5+R02FCqXplnuwyxy2nONdKGxN/MsqjWoDMw1pwAvTbkNlqkvHcViibfZqsrezY567k+1Y0uJBNFj61sEElY+Gc/1g4s5A0TtyAtcZ5zfF4aYdLU5nK7hOGYiV/Vta7Mfo89fE7e1bDgOAxYcZ5XZ3trM1jbyUe010jqAPiOfNRbJ30T1743Eb2Q53/ToB968vfQy5dAAe0Tbj+sfXrc9F5Orb7Oc5llxbqfZtmN6SOrLGWxgCszalc4cu0dPx2Wp4pj5iX253eXOvKBzc7l71WXijAMpN6eqGhrR4nmf50Udi+LOc0MDzlHLYeeUAD3rHHHO82r0elMfln5XniMADSzVuN+0hvd4n71YxPECT2TVbACgsGR5/m/fqqMkog1qO/X3juWsxj0zFlQwveQ43RNZjep5gc3HwCz8NFHG0ySaBpoAUHPdvV7gVXiF6w7AxnyjEk66xRtOUuP6VD1W+VWopz3Sus00DYDZvgPitPHEdRksbfafv8ARYCab3Fx7/Ddd7/J8JOAxF/WnfwIe9cBHcPeu+/k9gfIMRRv+lO/gQ2ubIstdSREUUREQEREGoelc/1ZL6v9ph/WJA/1iPct1pcv4fhWTu1jkxDmkERgGCAEm+y0esfErqXpTmjZw2R8oJjEkBcALNfKI9hzXG+K+kWmNjw8Bjytqy8NzVoHGNg7rGrua0xz1jp4fi51blJg3PF4r5NAHF0UFBukTQXMGYAW4irF2dNua17FdKsKW3KZZKdpms3+2Bq33d651NxOfEPNus76kBrBpbqOgaFgyTONhz79uhrauVbqy4THljh8D753l0/D9KwdIo2xNIvOXCg3W9XGmu08T3KxDx7BfK2OndJPHfat5a2PT1tdT7KHgudwcSc1mWzv3qxLiHO0vmSB5pcscZrGN8fh5Ly6Px3jmCmJZAGQsN5vpDKfpZPpuG9naioqTpBhoozDGHSAXUjn5td7az1W6nuWsYDh3WaZ2t7r1zXpQA58/JS4wGGhDgXuldktrg0ANs1ma0nU1ZF6+HNY5XLU92+Mm7rhh8Q45LITvr370e6tAPAABeIOKzxQOw7JcjHG3iOrffJ8jdSPC6ViTFMddB7iatzz4VyJ58lYe3ShoBqRVc6811L2pfopLKQQPVH3nxJ/xV+LM/Rt0L3Og83VosZsJcQG9o+9XJ2PachJob5aAHuOpV7r7utbjLigbYH9s4ak65GVzJJ19uiSyxbucXu5UBlb7asgeGij224ljGl17DnpzNaLLhwzWf2hGb9HUgeY0/FTa9rNdjQ7+yY7cW+q93Jvts+AWfieFOZEZDLE17stRtcHkXq7rHuPZNa1fsULinGSmM2HIUB7eQH86rLj6qGGyWOfVgZbadaIJuiRV6ilLvyXCMJmCaRmdYH6XNwH6I/8jp57K3NM2qa0NYNdrPmSdSfPTuHNUmmc86nVYU0l6Db8fFV1slmLt9u7+eaycFCBT3NzfoMAsvPI13K1h8PdEgmzTQBZee4BbCJBhWmyDiCO0RqIW/ot5Zl1jqcl5R+NgNl87rlOzAfUH7Xcf2R7ViRnkNlalnLyT95Vsy1puptdL8zqFN3dsBqfd4lfQ3oD4dJh8BMyUZXHEF1cwHQREA9x8FxbhjYsFEMTNT8S8XBEderHKaTu8Buuzfk/4x82BxMkji57sW8kn/6YlKrqCIigIiICoShVtwQaT6bD/UuI/eg/7iNfMrpfDv1K+lPSBwzGY8PwEUTWQOEbn4iQ6Eh2cMYwakgtFnxWlx+g2vXxV/usoeyyjm47cZfISb/DRUzDu/FdrPoTi/Xv9w+C8H0LRfr3+4fBF04uyUjavcFIYbFHIWWGggeGdzdQa5mwPuXVvmYi/Xv9w+CfM5ELHXv132+CJ2uVRTRgMprnOBvU5W3oaH33e9qQyOc8STtL2nZkZaLA5FwGg8fNdEf6HozviHn2D4I30QRjbESD3fBdSplhvw59xPigLg1scbA2tHHOATpmptaj2qMx8JsU6wBWwbm/daNx5rqR9D8d317779PgvcnolY4kuxEhJ3JrX7lLd3ZMNOWE1FbDX6zK2iOVOee/uGmqw5ZsxDQG6aDKK33811v5oY6oYiSvZ+FI30QxjQYh/ub8FHWnOsDK6MdXCKc713AZ3nw3prf5JVqaBkZJe52+oJGYnuXTR6Jmi6xUoveq189Fb+Z6LnO/3D4JtdOUyYjPoBQ5Bu3m481f69rW5WAWRq+tT3hvcF1AeiCP9e/7vgqj0Qx/r3/d8ESzbkE8n0R7T/grcMdn8B3+C7F8zkX69/uHwXpnofjGonePd8FdmnLYXuZbtA4igf0B3N7u61gYifNoNvx8V2J3ofjO+IkPu+CoPQzF+vf7h8EtNOL5lmMhEYD3i3EW1v4Od4eC6+30Lxfr3+4fBXT6FYnGziJLPl8FFcQllLiXOJJO5PNfQ35OR/q6f/enfwYlCP8AQY0+riiPNl/gtk6BdHMbwlww2RmIw00pc6VhLXQuLALcx27ey32lB08FVVljSrrUFUREBUpVRB4LV4cxXlSkGM6JWzCsylTKgwTh14OHUhlVMiCNOGXk4ZSmRU6tBFHDLycMpbqk6pBEfJk+TKW6lOpQRPydV+TKV6lOpQRYwyqMMpTqlXqkEYMMvQwykerVerQR4wy9jDLOyKoagxG4dXWwq/SrSC2GL0Gr1SqgoqoiAiIgIiICIiAiIgKlKqIKUlKqIKUlKqIKUiqiCiKqIKJSqiClIqogoqoiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg/9k=</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcQY16DMQkIPdm7ghgM_R_sRf1flvC_tDPYo4uUZztpR7N_r6hlWEEvjboAfRP61gA0BoU1MhGAGtq5icEEFcHnsSzjyi3WUK4LP3LtS_Ok0uGKKUZNURgLewRsW3wMKn3rGnCUpkA&amp;usqp=CAc</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRmYcAABXRUJQVlA4IFocAACQVgCdASqrAIwAPm0skUYkIqGhMXxsEIANiWwNvqW8p35w/kPyg9lSxf4v+3fpbhRan8kXm3/b/3T8nfnd/nPVP/nP837BH9Z/tH+7+2nuQeYX9cv2J92b/UfsZ7jf65/if2D/znyAfyz+zetB6mP9k/6/sE/zv/Df/n11P3F+ET+0/8f9yfgY/aj/0ewB/9/UA1Pfkj+b8G/Gp7x9yfXlxb9a2oj8w/Bv8X+/+2X+h76fjnqC+1/Bj2bds/QI95vvXf4/6f949SfsD7AH8y/tXon/yfC1+1f7j2AP6B/Z//P/lvyd+UXPC9UewV+w/pof//2/fvL7OH7XuUjilo7MvyRnLKnVEJWM3KpvSv7xYx5R5snf8Dq9xd+4M57/qcZ/MFYh8Vl+h9nJVHYizT8/GlpcOMpWyEDCm9640YLkCven4N9XXnHCsbZXDbIB45+OeMGCIRDrpxD6SypYytheZ+d9kJ0kHmV5R/gpTcnVsu6Wz1HAGBgylMZ67pUlOduS+MnnVyTqVdYeoWV0/Sj341dPDjL1J8jaMCUAr/+eVKS1JinCDx7XABdbGYk1jQWc/xZrnDpi9eSeHWKLqUjiVM6HiPjrrp0U/UYnYRLUxvBSegvGgr1H6LGFSV56QxiDg/IRVnL2p9+k0j+GBrKoIgeTCLFDUpOqJbQUC51epTa7o+cOk3XPbtGq7ZJy5E2zsDkIMTc1IwGU1OpAqPRbMTA5WaGieyQ/vzwcPRj4SnQSh6YoKk7BmwFmVXUWLOsDqUZFZipPzv/iBRAZY8TUca2rn97uu6PawxkHHs49M4RnnkdB9Z8S8E/+YBuy5P/vkvMNokqrDmWkA2pUBo2zyKYaXDSX27wBqJAGx+juIt01pECeyeKos5zl3/R53WdKD61YUx3JvigyRfPvtsuvvF5WBLkKRSA3Lyc8cAD+/hxLFCL6+JeVQEEGuV0jpp+RDIpBJk8Tt0IGsCa2cn1ZV4V8YMIoTPUCymqYYM03/gixZbjnnDjsBs6WhPva+nfcMWDZ/oijcYUVktUlB1MjzGPS+k+h7ZyZSohQZrgvbRtsCep/Mte6/5cGz/pLoCKPOd/brJJrPfpu+RRRBmbNNa//ZrOYI8KN9hb8H+GCp//IGK/vdUu4GKl6HxXeuFD+eUTswiZMY27tdZbgO7DRCb+mm2iZcTNy7DknHaWZgM5/UvqNg1hvRh1fhVLeQw8g9CGwDJfPPSbOkoJVpssjp4VqnfLmN+8I443pfqWOy9PcW0WjOIpe7W8FuuhC5duidtLVklzCOsFF0ti1Hrqby1JYX2wyMiFk6v92SMlMKXXuDoGMSKMn6gyD1WPyMv01RM6PRVlrw7Pf8TJ3/xq6nUvNR+OEu+qv9nNiGZA6lG/nB/YnHKHPFZF4z7GCw3Xr7BmeUX0HE2jx9S+VPhqKJ/OsWrs7h3Rn/pfLkEfWwCA/52UPf4nXxgq05C19Jido3/JEA2bAb3HLuXeC14/xh/YmBsKBRAnAQC5HTWuXHeEcMwso0xxZamljVdQd8ntnrdid0EphrWNpsAH3q7PzZxjSS63Yq1vWdToFrQBelMBOIvNb1chKejrHxgFzxeVv/0PdrnZ7KWM/oAV2O18fE5ozccFLK5u9SrQnzvuTzkefol8RI82sJPOI0X3Mt9ZdbNMZpwJwk5TkreROdJOXj0IO5oSc+88ReiqYwOs+8r8kgYVikangTNXSe7Xh5wpjUofzQKxZjwydjEAmAWt/HFhoaxydm2FQtJSbsF38pGtmsIut1uq5/L5n8spuntV1+0RrVzdxMv1wjruSE7f72lBUHT5K0Wl8Klc1BxF3eGfM9otwRHLEQ2IApXW6V5z58XLWP58OfhW8Q/UlSVJRMGUid19d6JvsR5O+o7Oh/B5NmWj2PtBCtOYSO8K0hpYuLBvvrhkZodA3zxQdUg+jOk+BSBYRD3wFOwYtT6QNqt7xrYRxgFXhtIG42Cf6hijOPTTy4jKaeKBJM/gk/6hnwh9W6XyEtr2qE/wWZXm26JoI2/O9PxEtrTRCH2Oq9XyWMOLCXEgQeWmmxCZEm42psdgZkG5lSzrreI6FUF0hdonOQD5YM3n6q/NVCT+8jHba9p89+Sj8D+iZ3ydcxll8iZU7DZIvx0fWxj1EiCxl8Rc/82LUAqXwg6EE7tk+/NpYbJENhgsYgV7prTaws300Zg2SfcUATSrEhQPxrIj852tbKB8Ydxfo9UiM9AVkqe/EjEjuiSqkRGJxYTcJpr2QG/eK4EwiYU4oIpYws3QdFJIM6y4kLlXnT2N1EOpApTDC4jDbMnq/5EQ2kAzdKbmd0/T/wWQvHm3PJzZ7U+lqRNoSzY0qmCOw9cuNMnZ2CBCRrcZimMzy0XfqmC979JKrPpsuTvNM53IJPFeuRQmMeIrUbRyDaYvmcOfyl1B52FRwOpHtriKx2kLI7NNBprbdD62nRIRMrfCc/5NTv/+XTFl6yrF1ayzABfHMWbn/zO2OKK8Ntpp5llaaqWJN/XiQgQ16I5tCJtxMF0pgjTWWFeSZT/FMS13wDquudtzEL1aWVV+k8a7mMvII+A/nDQhkKrcyKqQiBaKglcFGwBlxPqnBdP6hURqyag9uRSLlZ5G5ddufoRqTnQ0yvXBqQbmmDEZaLZzq5zKqyFrv8To1lgJ0qm51dUhlpIor4hGKuOv2ny+5l0kf7g+weYsoO9vMvDWfOOthy4KYPScp8p7YTPGFueRHe4B2Jb0b9v6r/gtlaGOIG7my2gvPACRTpoACMNUG8+D5O/F+kCgGBh1pNzKeH7vVNgFcV0m06O8sIEiRGQR9NVqXY3cmMRr/Of3tdUq+LbrbMzG/OD7KN9NyHnkQN1hoXLgNLds9b5zphLuhSUchX7G41FuVU14gNJnRkS9XvMuhpXAFk/reJ7e3Ia4AjH2Rh/ktLz56o4t1YZUCJ4JC0oC5v12Mvi/pCXpW+lJgQy86ZyG1NnpivTmOCZrzqOPoTfxPKveruuz17S30Rh0iCx9QnjkdNcyxr8sM5fl87FgAvbI9IgJS3ZC9kuDXriq7lk6R6l1iIRmDNugtX5Kocp3mUd/ArzKMwI8xCM5+Ldq9EM09/JDB2KwxkiXwhg5/8dN8FhIo9sUlSBy3KWjEDUOdLxrZYtfSsJSES24Onb3543pCfEHzB0bDlohFtedtDdpuQqS+YiNEdvL7cjvl+YL2/JKT3H5ghl7LzV/bzdKI4jvSlp5wyK/KUYNVU+7dIAXfOK7m+IG5rQ4GIhUrhQqZZ+xM7ZX1cmo1YAKgoJmCEo2P8wRWK3xjFsEq6zhbe2DRLeCJeIyov+Y4WKwQhOje5g/CJFccqsAqn6txysjj4kZ6OADSuECLziO+s+ZsuT+m92Hc3QxebkmDoL57D3ccnyQ+Wv5etokCOCLdaWPHy1+5P0ci49KyyAE92WbdRuLp3KkE5Lx+ZOSMqzTYcM7AH0l+cTGRqXbGfg/gx9xOfGY91gha+zNCvwoZc20egWdtmxaCbCrTzn8wHK3PdRbfpCKDy/eArh/Ypm9x+khOxDvHc6J4HANieHOvY7IC5/XwWvJLPP8wjyx/XhoXzQSbc9op9Ykks//6fSkiynTHyUtJLlVigfBnj65fqhkBVBHvxg6m9zOZbXE5HSKc/sUKT7ZEzC651NWoVt4a7G7Yl76EbiuPjD8N0vKu10KsR5KqyhtDjlo8cPPwrtC78vwfdxH/y9vEgu2KyyarRFHYc4bOMg8tz1HJbo3IzTciT5yNTzzT26Dcb0q+CFbfDf1iYhZTbj/qd7yasN0h3O6yocMD+WAsH0ymRj1IlYrBgflgKhYFYhEdSHlKkt4+og4Nzxe2CUUZkNuOBTB9fGdJ6zBY2FuJbfV0w/4mPOQpHwgexeP8YLSV5eBRpAGsIDW/VZPQcBbGNlTmYd+F+CNlZY4uhyr2274R5OTvOAddBBeqL23nlEFc4s7VD/mBaB+6Ry7VTzyVj3t+q9BdDqar88OXSFUJDp4ph5YPuQfBOKhFlG7EFF5fyt0LwJvsX5QRSG7aDXGe3198I3RxgT3tne9GszUHyxXfH8n0K/nfRokhYu+Q79rVzxWUFS9+O/bGy07s7Pf3onw4mWSDrcAFUKe7qz1PMYGzT4kvvS6K853kKhXaKpIqe/AHO7WOZ88weLvmuEAZ/nI26C7BrdqllZEi9Oi2nQ8C3hbSLaXxWAU4swtldpnAZqbV8lPkBVMm1PZPa5SpwKqtB1L/E7ub87Vbrw1TM4ZT+eGvbWBuRNqUt31Sd8WwC8MNJ3ncyki5aTXdjDgeCmufBSUunWQiMG3lRvCiN0GF+9D8VhcnjZ/5DwZjsFCcE4aSvg/um+KTEpaBk1xrm5XM1+yBTVADequpdt5PewXh/SMIlcN+bXXmcd4Wcoqpw2r/ydSkpGGaab1tw0n0NtNM72jC28dVMtXj6JJn2iWB53m5w7JYaMVQh8qVnOwSPoGrdlp3nVvGFhWxHbd/dQIEC3rMMNeM6e51BAdyQEwwuDTIfp9lxLIskXeaNY8oTLmcy6dSRSQbB8Y6F0ZZHeWRu948HIXO+EwQ5ClR4LGSwSaM6eEOl1AiIdX0xEa4cD8T8a6sNv/qG//BHMNULfVcR6pTEb+2Q2Y+SQ/Br4fqAQ0XAMXuIuRFXdmiFp+PcQMwcmZvhE3H7kSA9AL0G54O5+OQ8TWW093UsbAYahiBP4Wm5ovIjTlf+mu9KAJlmmUDXRdyILSzD7wm8T6NBstsmVfgIdHslMl3Nohtr3GjGnGnEUAOLJA2gJc2QilXP8m3Vynv/ov4yy1O79O9R0XNHA5fWJe9QnNOtppVmhM3MvvYmNqhaBQ1nGkYSM1iVFDaMMZzj8DwdvcgEAuGWpo9YSR3xKH6dtrlTlx83K3PcW6ZDErGIOrwHtwp+EOi1A+GGjuWhSCFvzctRMx/SYgld5lHX96xyinC+0bMdWwJSd1DhGcoYDXhXB/E321AfLil2UawiPBXHzvAyq62cHlMBjwL07K3BZnAWQwFK5XBu3YX0oQFtpVltdHHBDRF6TLzs3RA6uG21241Rs5KcoPwhexnhr24/iUTrjOSv4yxV2mbxzZKWtrQecpTTU247IRFgpYEVsC4e1ZC4OhDox3HOM5lEyV90zb+tmtLT3xBESgNMSHSAkegTvJretcZpsFlWts+ibEuIJUkKI0G847Cppu4omNQWy1BGfUmzGJASxmtUDYu3OsHzDgrHWXgxLSVEpEbfidOGH/Oa46R9y+aYUnWUZ4v/vIT+uusts/ja4G/guec05au76YVhkNuL51bK7dm71o8mTAK1KfXouYgnm96rm40zG3ptQfqX5r7gGEsaMe/GNNVRMva1SqR7HNRNRYRw+L/UKt9UnjA/g1UDBRt7WhXl8slPA23AsytoZkhjHr3cSYWHiA01R63vKsDlTWQFDX4k892s+LtNTltxfmc/6Zw1CmRgUOI+Ca54RParT031A4O079ZiSJzDP0AarkaqHkH/wD2iSngKXInl6a4I30+CuDVL2cL+50DcOOKDUyjP/PGco7LpPD5L9t6DjzTjeqhv1NplMEsKiBxRMdGv5nXvL/sKtuFdUoEBiHzHIdBPojqGjQ76Fym/+Ixp5Ke8If6mfTqXfADQ1DaKRUuScSZ0pzddEPRlK9Md9CZ9oOWDZ/lFZdv+FYS32+Fhh7QVz9Y7QhhiFcY59SDwMwRKp4S79k2WdsGaFPnalPkp87Rt+LQX8z0+Pi0LPBlG8O5Wdmd85Vf2uzd0E/ZswIsIS1xKsu1yDYrcYIOYVEC8fPaE5sChgP35QCXQcsv+Fbhptw9gE4D9/UpSeEmKENHXmIFGFKIqsNDGmDu7O9tdugq5NszSA0vFrdC9I4zJDUHZ4JVFBOphhB5wE4VQX9GbDQui83RLQe55isbU/KcTGSSRvbiZ++AulU6UoFHL4KdSaO5r1IJ7ATkNWnv/yiPZsVTT7AbIzJjnoyVU7J+naIMshVoAhXOHDYS34lf3NElPWkDR8F1NB+QQJePi7jUAPYiNOx8iVYQnIQ/PxCtTqHfl0gE7euZJ5icnbaO8O1KZ+cOuZm/Kz42T9SXjb2+Uhfp0nY0kcDiFE+JIZdBFCJ6B493SA3q2xEGEZxvTdJNuHoJYMoqXfkVZO2sd7Hc9YGa1eI0fR404EULcv1pe8pc2KJpzs0JIIfyTAoCEIHqHrdbJqX+fqu/JyJwLmuA+lj7HB/emroZ/JgIcv37SfXsRiu3dAW2zCShhAIQBSga6K6MO3CJdV8BaPr3/Attv/nHqM4h0D63VFpLJPVxJ7H0Q9nV0FQ766p7s/JxNzDFZmLLIN3ZFTndeoe9H/NdVTCwjn9TL+LnJkVGJfjnOw/Gn8u2MXGWJp3xJgLVS95h0OGCSIa9+NTIM+AEm1QIwQxSOrXWphmoTcoHFh08rQ3MWnMWWKM0NnevMHJ+pPi0vTUiLvjbNSK8pAccwk2d9LKGDqbYfp+E9VC8T1+v3IIpmAILwaiTdfFWei2pGemb2FWJFo+xq+aw0r/eYN2UuGAv+6VDBQ4I3cooln5ifsDsJkW+3iJkwAZpVr4XX1f3MaMtMmRBzljNjAJaeyK5vfJ9PDuI2vWMC5EP9990fwG2g/xYUFnU9FMlcEXDauNH8345SFMnzdKRwdlEQ8+d336bi/ZAXurxGdM7dnM1mOn261460BINykLKqlLPjkW2DNTvDVwtyFFMmK3tGdZ7RGY0YcPzweyVZrfFWRMfGF/cnXdw8xU/h6Ta6aRhdVwVCAiOcE19naqz/DI4Tr4QZKZEQR3lJlHiGHBW3UTVe8zZfYkxfgl/vkB4CFycxDjzNTDCGaPGWf9Qhy+/MudkPgQwSCkdDBJJr+x6+AA3WmPKX/HF4kt04BRsKR/1Kwy5I3mjMwUZtJCb1nxsYa2SWoK6kMCa0LHpU0HiaWkwS+KWqyFDJ0nkoGtpJCNDNIOrAFcqtQZFcOeLnURL5wcHU7wXS5IA1JcXWUMVH+Bj6aM7HPa+EjbnLIujC351YL+OlN/e2KAJBP4Rq+M3Xg5A3awp7mHV6tM3wRHfnbkNupi2tiPnb/t07ih1yQh4n4lKecqgYVzhqDxCIT14XNL7VLqBNV97UvqZpyh4PtQTSFaYW0KifnNrlR1A6UkjzP/GRRGsd6Wx4PQ7jnlVglbSQLT2rup0kJn+L1Xrs0xSj6H8Txg74KO/wy+Wh3piiRxzlJweRgTm6szmZ9i/q0gA56yNowA+RUQO3jgH/tdwanVSaVRwQACLZ7UH5fVDpEo4F09HkuK/cgBLnaKO9N6nCzguxpyJKb/NL7DlFkNJPpN9WLy/2v8jBTKAS7Lj0JM09Z+3W/j3zCKLhO/S9JT36qoKf3L5Ib6z+Eb6vOi45co7GsWg7Axml7JGGfKVCwZ0AdabVIIRQt1gPmWo/gIQPp4pJbVy+28zNhmijx0l13EQnxSx/WKIX6Yl6Gv1hVq8kvN3eMxb/+dGcdPRWup/zG7MYM5+806ID+VFESGj22myULxCPDEh8xDYjfpG8hhftems/SWYDHpcOXb7zm43tBhNuiVBg1PykrigOXXbk+erJVXZ8t/5nixZHtFG8ilt3QmDc+hAdNZoT88RHZRDncsutH206i2Q62IGbxepTjkd5DcpQP/Ca6cshDynZPwhyo074uwJWUjVShn3d8apnLoq+4HW+y2RUikERCx5nXbUMl8CNet0VFX0tKLwD5T4RdVetugnJkVOMH/QLwmJantDNiMCJmU1pGS6GY0KQv80/bE4y5XcMAtWQK/VqSiQmADdGm22CsQaBNZoHf2Sf4Oq0HgsvAUzpWUNLfQ7o27w17UTUWIFz3uoZFi61gzIhOpnOg87i9TzMXO1ZVBvckNyB43sFxtLlOARcorCE0KOkKOUbgjiwMWY3Qb58Zi65ZOB0jRdKOYTSqex6VAlinwsBkC8Bc0l7MAD+SQ+xK3/p8w82epdHuF+x4JFYksvxCksCN6HMiBNo0hW3TuQY+AT8ecxEksMuICM7n9VvFnJfrT+x4tiK+XsmXn8eGjsOf3/pupwQfLeptKgG3pBUgkwIwq+ihHn+tizuQN99egdIjK7L4nVb0koPnG6cClqYJ6GfNAFpW3Ad7ei3RmKrwYjK66wtvYgkAB+1Y4cevewnSAsCAr3ZHKRzQ2YUKNax1cb1l+Y6PCUjAf0XSFZOYppy8LOB95kGEqnzAilH7Yv7XUxqFR7P9d4tZ3YDlVfyLJgTLIYlYpN3IX8b0T20UyoVXHuTgoUPrY4AGnaIazlAX6m/ZACTNcSmBAtJicyqFZR/+g+HqgvyWb++dhUPviquSve066V/Xqgir9dUuLeCLbsTA8z2LYy7CXO1u6xXor5MbIzriNqq7qSBnOL2wPva97G8u2e5irDeIyGM/J8BOuvI6Fu4gEJ4QQoKJ3maSrx7jEP+Wy536ILz4Scpd+6MJKLoOfB4aGlf8ndZz+k3mrgZ69pQ2F8+FtIeCskwc/X3S32un8vU6j54vCjkRt8Y3p0ZSV3rnzvDbkWT10ZACbyTd6IAk7B5RCOqOZK1QMrmVVD/dP9JZA2OwEy/Tse6vEQQqvl9+e8OyLCxgZJhLECzdD81Ybm/S9HGQz5YE8l0R+eZfMbYidxLjdzVHnCktjRf8X5Q7avOzHjupslBpLda2zK4lnqRdph0YU4G3N6W6TBhHRjsxb/l26/Qe72ePc7OlQ8cOXnr6bCNWIhVvqd8Vnh70I+a1RAvh3kTDiCLxDRfuXaHNiGZVSgLAyVjU5L2RO/rxWDaStyTSnY6V/RiAg/eXjmtzduqBw1Hy98YkMyMNOBHXEv/0MVbGICN4PejDvyabvHl5c/jc8TSCtHI+Z3OlJNtAsXVwMaos/xYDTVH9tnt6pUHT4idRggkAfHqTHnU/sC4047al/vIU72K/WUh82JFQQilyih1LiIqi2JPczyZFFYvgX9c8/fkEKTf3bFX5VE5GR/hzfRHHk+wO004eYADAfSaUcWrq9EuHOsWJwMAiMOoLAaNQysl/7/a//i2wKf+IgQ7oOnxh3/gpyP7Dyi8uwI5qp2/B+Lted0BLxXRylCtDeCM7G788HSxpeeFpK/4bsOf/xitP+IEr5Xa5/iCk76QNC/d3XfF/MoBE9qs2DUHG6nF1lKZcO5NxHTiFB0RVhFMhDcdPKPmDVRF2NCIc/2JK98hDXTQmWpnQqGpkD010fu0VhNEy5cSRTXMd89oYHuHzXA1j/ABWCROQImqy3atLEjtrV9L4rcoS106TJKYrELAhN24ZULD9cgMV6baM8YI9EYIm+sTZHMr+sTrBoUlRfq7FNtEO2pdpqxmKqPydldmxyGhyteOGpssAJ1qm3hqSuPUp2o9hCbjj274i+sDrNm6H5IaSyBINdf4bQq2qY+o54F0xX1skEfTYlZtHJEAeWW9uUT2gAj158Qak+kI+ADFOot6L7IH7NifIFSMnw+NAsKleCTtBPgh6sd8oc6Mjyu1XmQAOCqwErDn+AWCeCkvoonaWLoSZPPLa58zU0kAFR1J+fS2nHRCjZgy4AGGuyOV0vjyrj2shg37CXeMHFGKlzHtPUn9r8Ab9IEbkXBsK06vhPqI9Xdkx3Msx3EHwJth4BSQzoC0C/uRhT7AAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxETEhUSExMWFRUXGBgYGRcYFxsYFhgXFxYWHRUWFhkYHSggGholGxcXITEhJikrLi4uGR8zODMtOCgtMCsBCgoKDg0OGxAQGy0lICUtLS0vLy0tLS8tMC0tLSstLS0tKy0tLS0tLS0tLS0rLS0tLy0tLS8tLS0tLS0tLS0tLf/AABEIAKkBKwMBEQACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAQMEBQIGBwj/xABMEAACAQIEAQYJBwgJBAMBAAABAhEAAwQSITEFBhMiQVFhBxQWMlRxk6HRI0JSgZGSsQgVYnJzstLhFyQzNFOio8HwY2SCs0TC8UP/xAAbAQEAAwEBAQEAAAAAAAAAAAAAAQIDBAUGB//EADgRAAIBAgQCCAUDBAIDAQAAAAABAgMRBBIhMUFRBRNhcYGRocEUIrHR8BUyUiNC4fEzYjRysqL/2gAMAwEAAhEDEQA/AOzUAUAUAxicdatwLlxEnbMwWfVJoBj884X0iz7RPjU2AfnnC+kWfaJ8aWYEPG8J6RZ9qnxpYGJ49g/SbHtU+NRYCHlBg/SrHtU+NAJ5RYL0qx7VPjQGJ5S4H0vD+2T40AnlRgPTMP7ZPjQCeVOA9Mw/tk+NAHlTw/0zDe2T40AeVXD/AEzDe2T40Ah5V8PH/wAzDe2T40Anlbw703De2T40Ah5XcO9Nw3tk+NAY+WPDfTsN7ZPjQB5Y8N9Ow3tk+NAHljw307De2T40AeWPDfTsN7ZPjQB5Y8N9Ow3tk+NAL5YcN9Nw3tk+NAHlfw303De1T40Avldw703D+1X40Avlbw70zD+1X40AvlXw/wBMse0X40Ao5U4D0ux7RfjQC+U+B9Ks+0X40sBfKbA+lWfaL8aWAeUuB9Ks+0X41NgHlNgfSrP3xSwBeUmCJAGJsydPPG5qLAtaAKAKAKAKAKAKA43+UIY8XI3yt+NAcS8bufSNAHjdz6RoA8bf6RoA8bf6RoA8bf6RoA8bf6RoAGKf6RoBxcQ/0jQDq3W7aki44Lh7alIq5Dise2rWRTMx1atZFHOXMcC1OVFXUlzMwgqcqK9ZLmLkFWyR5FXVnzDIKZI8irqz5hlFTkjyK9dPmGUUyR5DrqnMMtMkeQ66fMIpkjyHXT5hFMkeQ66fMIpkjyHXT5iqopkjyCrT5kmzk2Kj7KzlDkdEK3Bsze0CdFAjurgqVtbRPRhTSV5Gdq2mxUT6qydWXMSgt0MY3KsEASCNO0delWhOT4loU83AfXIRIA+yqOc1pcq4WK3EYiW6OgHZ11tFyS1ZrGmuKLbk+4N6yNzzi/jVqUm5WZnVilqj1Aa2MBKAKAKAKAKAKA47+UC0eLmAYBMHYww0MdRoDkGN4nYe4twWQIR1ZCFykkPkabaoNMwEBRGQGTOlZxbVk7ExaT1M7/EcMZK4cAkuQPmiZy7NrB12EDTXesI0qq0cuX5+d5o5w5EPid+yxXmbZQAagyT9smf5xrArSlGavndys3F7InjiWEYfKWIJ+gMsEoOkIYT8pnOXscCQEC1qUGrPEsOrsRYGSFyqdSGAgklpkQzmO0J2UBLbiuCKx4ufmxptr09nGbqPftAmaArOK37DleZtlIzSOqCxK9ZMxvr+GoFpc4rhWn+qKDLkRoDmAyg5SCuoB00EEADMaAztYzBwo8XbSRJOZistB84APB7CsnaFAqSraIeBvlM0AElQBKhhIZTJDDaAw/8AKr2M81i0w2LtC4x5r5PoZUygt0NYLzpJ1OjTtpAInKyudD1h8PAzWCTAzZSR0oOZl6WxMdGIEHt0lRZRzjyMMRatsVKoUEDMB6z5sknaNSd+waVdRZlKaLFTh2ljayk5tAJVYtgWyIK5hmBlSBJYkmAAZysnrIcURcRaQsrImUACVPSEgntPSERvvrsNBZRZjKor6E03bEzzMmQTI0MFSYGbogwVjWAdzqCySLOvTvewlgYckBrYAhJbpa5Qc/RU/OEACdDrPaySK9dTb1RX4mwpaUECBp3xrGp0ntJPfV1B8TGdWLeg0MKdqnKQp30RJ/MtyJgeqda53Xpo61harRGOEI0raNpK6OabcJZZbgMIatlKqdwOENRYlyHEwqjziZ7FEx65rmqVlF2RvT6tJOctXwQ9bSevevHk7M+hjFTipR2G8SuXXr6qRdzWnQciJbVIOYEmt7m8qE76bCYXCs5KqOsGOo7zPdtV4NX1RjiaLSunYl4jgFwLmmT2DQfVWs7PZHHSbjo3deocnLZ8Zsk6RcUR9Yq8KLisz7jKpiYTl1ce+56kNColAFAFAFAFAFAcc/KEHRsfqt+NAcKoAoAoDbcLydwTYY4k4m4EUqrnmtnYCQBOo13rgliaqqdXlV3trwL5Va4nGeRV1FFyz01Fq27KWU3JfchBrl29+8UpY6Enlno7tdmnaHB8Cs4ryZxOHTnLgWAwV8rq5tuRIW4FPRMf82reliqdSWWPhpuuwhxaKha6CpKtLUkEq1bqyKMm2cPV0ZSLCxg6sZMnWcBWiMWS04ceyrpGMmPrw09laKJjKbMxw09lWUTF1GL+az2VbKUc2B4X3VOUq5CfmvuplGYfwHDouITtmH1TpNZ1o/05dx0YWf8AWh3osPFzlINhySY+buc28t1ZT7omvnMys7n1+V30KdcDnhoOo1B3nv769bo5N02+08DplqNWK7Pf/Y6vDO6vQynlqoI3DO6iiHUGcOQrPKCSxkdmv4V4FRNNp7m3xPVzbte5DuYcm6I0BmR9W9YVElC57nQeMlUrOm9mWb8nXyMTBJEg91Zq6Vz6ZVI50kuJrtywBIPVvWid9TucYpNmxcj+G5la5G8Afj/uK1hozysZJTisu2v2LbidtUHfsB1k9lWlO7yrdnLToZU5y0S1b5I1/DcONu5YJ3N5J9ZJ/wBhH1V6taDjSSfZ9D5vDVlVxMpLZp27ro9EmuI9QSgCgCgCgCgCgOPflBjoWPU341IOEVANj5HckLuPZyGW1Ztibl5/NXQmAJEmATuAANSNJ87H9JU8Gkmrylsluy8IORYca5FYe3h3xGH4lh8QLcZl0RtdgoDNJJ22mDrpWOH6TqTqqlVoyjfZ7rx0RaVNJXTGeG2saeG3bFvBXrlu5cW5z6qxACxIAC9IdHedK0q1MPHFxlKrFNK2W6+5CvltYtuGcpcXiHuNhsC9xvF7ViUzOENslluNCRqfmmNt6562Go0UlWqpLM5a2V78N/UspN7IjcpeP4nHE4RcHiLd8sC9sXbr+aJKiwy9ATDd0VfC4elhl10qkXG2jsl/+r68iJSctLEfiXIzxfhq4y7zqXze5trTrlAEvBgidlB+urUOk1WxjoQs45bprwIdO0LstMJyBt+LWMRex9qwLyKyi4kbqCVBNwSRNZS6Zl106NOjKTi7Oz/wT1Ksm2WfD/B2edK3Lwa0bBvWrtqIuAFJBBmNHU6EggiDvFJ9Px6tOELSzqMoy4Xv9nvyehX4fXV8LlVwzgeJdBcXD3WUiQwtsQR2qY1Hqr26mOwtOeSdWKfJyV/HXTxOTq5tXSZZ8M4ZcuEhLbMRvlUmPXG1bVcTRopOrNRT2u0vIyUJS0irlthOFuWyC22YbrlOYesdVXliqEKfWynFRfG6t4PZmWSbeVJ3J6cOIMMpB7CIPvroo1adWKnTkmnxTuvNHNUjKLs1Yl2uHjsrdGEh9eHDsq6MWjL82jsq1yjTEPDR2VN0UcWY/m0dlTdEZWL+bR2VWcYzi4vZ6F4OUJKcd00/FamGJv2U/tLiK4Knm5BuEHUc2POYMpHUYltur4+cerlKD1s9/c/QKL6yEZ7XW3sMcO4aObBiM0t36mdYr6Po2nGGHi1x1Z8j0xUnUxck/wC3Rfna2Sxw3uruujzFFlbfxmFW6bLXALg3XK09fWFjqPXXHLpHDR/u9HY9GPROKkr5fVX+o7jOT1u7DAlWjRl6x1T1MP8Ak1epRo4iKmn4o43GcG4TW3B8BnhnJhrb53uB9IUBcoE7k9Izpp1bms6ODVNtt34FoyUf2XT+2vYMc7iMMeZuILlssFt3NtG+a8DQjbqnqrjq9HLXI7b6Pbw+x9RhOmVK3Wxb21W/ivf0uaumDTnLvOoQ/nMsEMM1tTAG8lTcI7YrOrGzVNLRaHFPEVqtXrYvfXTtt9Ft3EzA46/g7TI9sKzsXCsYZZVerXTY90kdRAwq0pX5M7cP0nChTXWRc7vS3rfsv9R7ktZxGKxHPNPNW8wn5rORAUHrIBJPZA7RXX0fQtPPy4nH0r0lVxNLJayf9q7OL5/TsLvlHg8ni5/7m0Pc9d+KfyLvPO6NVqr7vdHXzXnHtiUAUAUAUAUAUBx/8oPzLHqapBweoB0rwa42xewWL4Y90Wbl8lrbsYDEqoyz60Gm5DGNq+a6ZpVaWKpYyMc0Y6NLx19fCyN6TTi4mzcSwaYfh2IXG2uHW7gsG3YNpQbrvzbDMcyzmJykFe8mK82jVnXxlN4aVVrNeWbZK65Pbfc0atF5rFqt+5exGExmFxlq3w63Zi5bzhQIDaMu0gZBrGXKfr5HCFOjVw9ek3WctHa/LZ+b03v5Wvdpp6FYuLGNwl21wnEJh7wxdy4/S5tnRrjnOCBIUgofUuXurqdN4XERnj4OUciS0uk7LTlda+d+0rfNG0HbUtRxrCtjbti3ftDGHCC0L+mXnQbkqDsSGKsV7o+bA5Pha8cNGpKD6rPfLxy6a+Kur+PEtmWa19bGr8t7d9OCJZxN9b+ITELnYXOcIHyhUMTqSAy79or1ejHTl0o6lGDjBxdtLctvJmdS6p2bJfEuO2MPwzh2fDWMXNtRluZTkItrJAKtBO1Vw2Cq18fiMtSVOz3jfXV9qEpqMI6XJHI7lO+Lv3jcFu0lvCslu2uiqCySATuTlUdQhRAHXbpLoyGEo01TvKUqicm9W9H9357ladRybvyLrk3Yt27eDNt2uW8nSutimVVYjzOYnK0sSIiRHaK5ukJVK08QqkUpX0iqSbaX93WWutFvez7mTTSjltt3+xKtsXt37WHuKl0Yi4za5SylyQQRrtl1/RjrrVRjRrUa2Lg5U+qilpdJpLRrvvp234FHeUZRpuzuyVw6Yuo9xbl0lSSr5ZUKOiGA0g5tB299aYyKzUK9Om4UUpKzhmytt/M431zaWbfDS9kVp3tOLd5d9r9l+wMfJKgqAQI87MY6pMb6e+vd6AoxpwqThJuMpX/ZkSfHKrvR3XK1rHFjW5OKa1S538zKzar6JSPOcCUtmpzFMhlzFWzEdWJzFMxHVlFys4s2FS2UQO1xiozEwABJYganq0kb71hiMQ6a0OrC4NVm7vRGl4rjuLcljeKgHQIMgBG22p17Sa86eIqT0bPXp4SjT1jHXt1N34dwLF3rOHv2rtsL4tZyBxmJYWkDLBUhRIOuuu6mp6unUSc1exqq06d1F2uadxzF47B4x5ulWdVuOjQ6ktKho2BhQDlPV6qu686cvlZhLDUqqvNfc2vkTymN9b73EVTYVTmUnKWcsIAMw2VWI1OvZWeKx8lRd9CmH6OhGsmnctCEbDktgbnOFoBCjnekDF1D50CYnfSvIaclZrVnrKye+hD5PuWLodIMgfR16S+rY/Wa9DoXENN0XtuvRM8vpnDJ5aq32f1Rc8xX0GY8LqzNMPVJSNIU7syGDWQ0CdpjWB1T/wA66o5XZoqVo9hXcR5NYe9c527ZV2ACyZiBMAiYI1O81DhTk7tFfnS0J9jDKihVUADQAAAAdgA2FaXWyKqPM1zlvbhcMf8AurX7tysa7+VHTg42qN9n2OlmuM9ISgCgCgCgCgCgOP8A5QXmWf1W/GpBweoAUAUAUAUAUB0XkxyFtPat3brc6142RkUlRbS8+XOGB6TgsixEAsQQ0ac0sQlU6tb6b8nyPSwuBjOm6lR/LaVrc1wfk/8AAxxzk3ZRGe38kyC4TaOYhraXciuXLEo5MjLqDAiMwB9GdK0c6eh5dScFUyRvtcp8MKxvYq0XeDA3iimyrRZnFFMsAEalu2B2D7fsqHWs9CuS5e8E4ily3nMLrBEz/P3Voqqtd6Gco8Cws8osOrZZPV1Rv3HX3VV4lcmVyXL7A8UsONHExMHomJiYaO2rwxEZFHTZli+P2rWjhpkgZRMxlg9wMn7DV1WTMpJIirypsXHUW82hnUQGBVgoEHvmD2CqzrZdSjeqLa1jlmGZRrHqPZ39esVjSxmaVmaygkaJ4T8YvO4bKwICXWkEEbqD+FVxMlJqx34FWi32mt2oiZ7/APnvrlO87B4N8VnwFpZk22e2e6GLKPustdNN/KYT3NC8KotNjyGui0BZtAsVZ4ILsBlQE6gju1rOesi8P2lTyABvWsVhrTyWvA5hKyhFsTrqNjoe8V52OWWcZPXQ6cNJWZtp4+WVHDPmNuEQW3JZSD0hdByAa9fYR11yNuzTe2m53JR3t2j3J68lppaEQWxnZj8+RrJ3UyY9Q+rq6NqxhiLt8H7HndJQcqHiX+I4xhUs+MNeTmpVc6nMssQAOjPWa+i66GXNfQ+eUb7EnA4pLiLcWQG6mGVhBIMg7ag1R4inkv2XNIU3mSW47hWYkllK7R2HQTE9WaeoTpXPg8Q6ubMtVb1OzGUFTccruiUFrsuclivxeLS3cCsQAVJ2JMyAsR1edPqHfVJV1GaiyuTS5qnLXHqxw9sCYxNpswMgjLcH+/fXJ8V1lRwWyN8PG0vA6eaudYlAFAFAFAFAFAcg/KCHQsfqv7iPjQHBqAKAKAKAKAKA7/wblHjSlq62Hw7Ktu3cDG82RC1k3ebVRZLIQgUlJ2e2ZIg1x08FGFV1FKWrvZu68NLrzOj4mWTIkkii5VcontG41wWrVy6C6W1uOyXVIjMwGHGZdYCuw0BGixPVJOTTbemxwOgnPPd+xzrDXoqNTUs8LxAg7Co1RDRb2QXllAJIjXQCdwSfrrJySeoSZNwvCF6Py2UiJhSZMxMyPVt2dtZyq9hbImXHEsJf5pOaIuhSZ2zQ2XXXaTMkds0jWhJWehSVN8ybwsW7ajnLhdtTlXzV62gmNB26de81hObf7UIxW7HMZZw7qWm46jUqGIK9jEPmzDXq2nvqtOvUhorEOjCTuVQ4dlOe02ZNQQwAZJUiWI6JWM0tpr1aiuhYpTVpqz7OJyYjCSf7AGJe5aFtL6BxlmNCoB16TaGJA6jr31WaUG3fVfmgyuVmloyj5bGOaXNmAtMIzBt3adRGhgDug6mr0JOUE2ejSpqELIY4XfLIpndVq8kdEWdC8E/FAj4my7AAKLw7gkrdb7DbrWi90Z1EaXhOK28XxTNfUsL9xgqZA4JYFbSuDplAy6wdhMCSMakZTi8uhtScIyWY6tg+RdmyrtZVLLPGYW02EjQdICdCQY0765q2ElOF3JuxtCrBS0iWmH4Yq2xbAAVVygAbACAPsrj6i6s2addroRMHyatQVfpW8oWNQSAANSDtpt3HtgdGEwqu5y/O0zr1FJZTUOXnIg9PEYd7lwgSbLdMKcx+UtgASQCejqTJ13B75xS1XiebPD5VmRL4JbxqW8ow5XOxLZyFMtvC5gwksTsT11xqrlThpZ6een0MFSqXzJGHE+N2cHiHQTCwMigImymTHnHMWJ9Z3rOE5pp09NvTs8DsxCUp/N+X1LPgnK61eIBATsJaFkDZidvWa7KWLqxdqmq8rHPKhFq8Siw+PvX+etXVdmDraICCRkt2gwc9rEvqSIzTO1YVa020m+C1KRTTcbEXj9gK+HzXFa6MRbDKpBAENJ+3TqqcC06jty90axpKGt9TsRr0ywlAFAFAFAFAFAcg/KC8yx+rc/8ArQHGeB4XD3C3P3TbAiI365I0M6hRGnnTPRIIE/DcMwBnNizIYAdEqGU21JcEqYhs+h1OUAbyAK7jGHw6FRYum4CJJIjL2LtvoSerUd9AV1AFAFAWeD4/i7ZOS/cWQgMMYIt2zbQEbGEJUd1APNx/GOro2IuMrzmBaZkAEdoBCqCBAIUDqoDG3bbTQ1W6IsT7OHbWIMdlVzIgvMFhbhUAEBTqZ0//AGsZNXJS0LezgbmmobtymTBADaGJggHTsrJyj+ehZFhYZinSOQHcxr15lUfrSf8AyNUaSehSbJ+FxGHUaWQ2m7FiTJgDQgakdnVWbUi0ZckTreCDMLiLzUHpEt8ky6yOlLdo0n8Kxu7WZZpXuGDwOHtf/wByTtCroIytG8kwA22oPXrVZycn+fm/kTdES5yftQGslbpEEWyAsroYkDUTB3I1G869NTG9ass1Z8zlp4bq5XjJtcjn3KrF3Lt+4XWGQKkQBlC65YHexrqoxUYJI61rEw4ccqAEagCry3Lx2HreOuJmyGCytbY/9NxDg+uiJZP8GGEz8Xsk65FvP/pso97+6rrYql8x6DwjZlynXcdYmDB1G21L6Fp6Gfi2ujdE9Ua/b1fWK5Hhvm0loT12mq1MMWVReySB2ST2a/8AINdKtFWREG5S1NfxfHltYq3ZfTnUlT1ZucdYPr0+vTrFQ5JNI1Vm3Eet4W3auM4VMsTrma4HJ1AzaBQNo11j18/wsVJtbfQhQd+w0LjrWcdmTRLqtc5m7tqXYhHnQpmMTuNxvrzwjKlLe6M69nJ+XloUNjgWaDYGKzArmhcwzAnPmhdNhpM/aKtnl/clb8sc6ktkbTxa1ii6Wsou3VtrF4yrS7HKpE6MgElt9u4Vm4rKnLS/5+d4veVluUWI4NzFzDl7we6cRbBQBxkWLhPnAZpIGum2xma6sJNOdkuHuictjuZr0CBKAKAKAKAKAKA5B+UAJWwP0bn4rUoHGcArKtwjeFj71LEXMvGbn0jQFrY4PjGw/jSybebII1YtJHmgTEiNe0dtRdXsWyu1yqOJudpqSogxT/SPuoBPHH+kfdQAMW/0j7qAVMW5I6R3oDZsPyaxTW2xChDb6R8/WAuY6R9E1d4WbV9NrlOujexlyf4PexBdrIWFiQzZdWB0Xt806Vxzklozp+Hm9ibxPCX8IVF7IrMAyqHliCDlaBsO/uNaRoXhnurFFSnmypXZlhcewggEDSPwEfUPea5ZKLOp9HV0r2XmTr/E+eZVUqbkEZc4ksOydMx0pFKKu7252M6mBqre1+8TCcWt2Aty4pYt5g6iU1JPqLjStamHk0mtmY1KFSk7SDFcsMzAw2UZdI0Ag5ssbb+4Vj8I7fnYZ2ZCPKKRswOUD/ztn5Nh9Wnq9dXeGd/H0e6CHLXKUAzlYaggSTEjpDvhpI7iR11lLBtr8/NtGXua/wATxLXr1y4wMXGLbwTrAHq091dVOlliorgWzaaijEQIirZGWzon4bguJe0LqqGDDMAGGYj1dum1ck8VSjPI3qtDrhhKs4Z4rR67l14NrFyxifHCA1trTooDdIMzJIIOxGVgew1M8ZSg8rvfuFLB1ZrOrW7zoKct7Vu5bS4rK7hislYbpSySdJBKmO4UWKpyjmV7LfQmrhqimou2u2paXeWKQSbLmOlAiZH16+qqLG0Hx9GQ8BXSvb1IPlraxFoOltiD29E5kfYzqIZWER1mpqYqlCVm/QUcJVklKK07zXuVPK821th7Qa0wZWVgrKW3Gm+2bbs6qzlKGIf9OTuia2GqwkrrftKDF8uphLb3DbkTmE3MuuZAxMMNlBYE5SZloYdClPLaW5KhVtt6kzy2wbqEfC5VWMpTossbZW1MDTeZ7K5epmtmjP4WrLdepHw3LZrbFQFexludDLAuO5055WGoAPadgBFWlRbd09fT/JSOCrL/AGJgOWJVXLM6ljKpaGVBsOlEToNANBVJYe+zLrCVuK9RzEcrLWMvYa0obMl9G6TFoWCCPXJH2V1YSg6cm7aWOerFxVm0dyNdxiJQBQBQBQBQBQHIfD4f7v8Aq3PxSpRDOP4ZZV/UP3qsyqNi5C4yzauu1wx0YUkSqzAfN0TEiIOmtZzN6VrkrhXK1cOty1bToG4xVgAHFtnLdLbpdQEDq2iocLkxqKOhq6XbT31LjLba4ucTACM/Sg9UKfdPdVzJ6s6DjuQGGe61qyblpbYdueKPdW6FZF5tVbJFwZplZUzAJgwIIeN8HS2mIbEyAt1zlw5J+RdAwVecliwcZfpQaAL3g+QBbRvAMGvk3RZZgwtojqIDwJU9WsggZt6XBRcT5Lraw64hb2eTb6Jt5ejdGZGVs5kxEggDXQmKkg37k9NuxbUlSrqGI31cLoewhQO/U169NZqce5fQ8qtVvUaXBmvqmHwL4hFvDogkRBbMS3MKCW0KhgG0nSRG9fP42jJTstfzifTYGteneXjf82ZW4zF2rk32LG6+5JkExtrrHV6h9Q57zsot6I9mioKOeyXLt/OJM4BiEe/bTFdKyBEA5VVj5peNxIAOswR1CtaKhm1RlXVWzknrv4ffl9zpnHUsc0ttrdvKugTKAojsEQsd1epSjmPFzJXbOS8WwoXEc0hY21VihaTGbmyyyd4kb6wRPacalPq24rbcivUlNRc99fLSwxdtFdQmaO3bs1k1i9jGO5Fxt91VVFwFcoViBl6SHM2YfOhtJ9e1RFK9y0m7WuPveE85zY6CjMpjp5rahRocwVQsxpqx7dYyvXUlzWmm3+jDA4jOGBXMoXTKCzIfOgCetid++patqVi76MXAAsWDIoywsAZelrJIA1PX6/sqV2EPtNz5I423csLbQy9voMvzgZMadh6q+fx1KcazbW70PocDVhKgknstS2tcPIZriq4D6tAOQkCc8RAbLuRuN5gRzvO4rTRcbe/LidKyRk2nq+F/bnwGuMcGW/aKXbbZTqGggqeplYjQ6+/vq1KdWjLOk14aFasKVaOSTXnqZcMwd5LYR81xl6IfKZcRKlh9LLv2xPXUVFmleMWr8Lfnf3E03ljaUk7cez80GuJYhcNmutbZiSisgkMZIUGCR0ukB1E9ETtGuHp55qNTZb/W3v5syxNTJBzp7vb6X9foih5cMDZw5YFQboJHzlBtvIjtGv2V0YGOWc0tdNPNGeJlmjB2tr7M1VrdsAkNmI6vNneSJHcIG/S7jXdeV9UYJskWrdmdbhAzEdpgZoMR1wpn9KI0mqOU7aItmY5h7AJALdKV6O8yBmgjTc6dsHuqcz5afljSDbdjceJcBFvAJcVQHYAG5z3yBF12RAytEFTzTSB1nU6zslZHDOrKc73sVRwlq3jMELVg2VK2zqwYsxc5iSCZO3+4B0rWlJvc5K8FG1j0Ia1OcSgCgCgCgCgCgOP+H3fDfqXfxSpRD2OR4TZ/UPxq7Km9clsQjcPNvoq1m8HJI6iZIbtUgwfXWDXzHRF/09OBVtwiymExF2Fa43StKx81Olbz79Ld2U6iUBq13exVJZczNJcnr7PXVih0DA8rL7WsPF64CMiHpGZRbalt+shteupRVmeF5VuEdGAYlQiNmKm3m0JWPnbEHqI+qgNdx3KDFXC2a/cIzEjpkbk9+2p+2hFzDGcexV22LVy87WywYroFkHTQDt1oTcusJygdLGVSMys8j9HZWOvZA9/VXoU6ydK/LTyMJYRdbmfK/iYcGXDvbIOGttezZmdnQrBK9FVd5zQGOp1ZtTArylmldr6M9VUr6vh3FlhcHg7dxrt4KAS3NWefwxS2uyFw95WJCz3Fte6ueUat9I6eP2NVVtZZtvTsROt43hqq6lcMuZ3IbNZvEK93odGTAS0dpMleuaWXJ+TL/ESbVpaWWl7a2182McX5U2WtKLRbW6xyFlY2rYWFRSNCCSCZLHQa7iuuhXcZJamDh8zk7eBVYp+nakgMRdLfXzAHrMLv3V1YjZHJOeeRDx5zqdM3nKFBjYjpxMaRH1z1VytN7Fs0La93+fziVuLwxW3BU9FipJBADwS1t+/o7aER3GqktxsrW09f9BzSMguEbEAnUjMVZlE/NJytpImDUmUrX0/Pzz+pJvKrYfm1LB9GRBsQM0gRqZk/XEVZR8ykqrXKy3JvD0FuyGXMVzKCWXL0nMdYBPd3ACKNKxKb4m1cnMGiixikhLqqJYfPAMgOOuCAQd9OzSvnsTXnGrKPBSuuxn0eGoQlSjLi42fajaU45fEQ4kALJVScoGxJGo9dZLGVlx9DZ4Si+HbuNX+UFxibbsDnA85BDZYgTEZhAMb9fbUvEVZxd7NcdEQsPRhNW0fDVj68fxAM84J1+avX3R9Q7tKLGVlx9EHg6LVrerKbjKG+uU9wgADRVy28oHWpyMO9KzhVefM99v8AHlp4l50lkyrb8189TWeXN7NZtTowuwy/RbmrkjUA/aBXbgIOFSafL3Rz4iopqDXP2ZqANegZpmeali1x7Av01jtHrqJLQmM4x+Z7HTuN8Pu4jh+ZjmKsLjIMikouYAAIOlBg66nL27x8yVzmh1bq2eiNK4VxC5dxtksohrluHgy2QkZQ0wQCxkAbkEnWumivluceM+WplWx6TNaHIJQBQBQBQBQBQHHvD952G/UvfjbqVuQzkvD7bMci+czIgnQSzACe6TVpEIt7VrEYXNfZA1p1UOAQQQ/9npvJAP2fUc2rmkZWKDinGLl6611zJYZY6gg2QDqH86laEN3d2QrbAmDtUkEwYvJlC7LqJ7ZnX66EGIxmhHq91LixY8meFNjb/Mi4tqEuXC7+aFtqWadR1DtilxY2XjXg6xOFw74m5etMtsIWVFcklnCQCQBE/OOkaidqXFiowmOsrIuWbFzqliQ2j3CSYtmTDIsGf7Pv0hX2say0SeZMyw3E7aWmtqtrMy5c+ZtG6XTEWpJ1UwTpBAgHS8bohVZLZka1xC4ARzyEHec5n1ylXcmzJu5W3cMCZFy2B2dOP3Kzkru5dS5k7B31QQwsv0pk5tdBAM2iYEHQdtVUbFpVW9LmJxPyqOxRlWOjJghQujE2/nESdO3bSrzlJopCKbtdLvJHFsTYu2wtu3askRqGLTpBJPNAz3gieuYEVsw2kzL86vmLlrRJYMZLGSGuHX5PsuFf1YG1LMi6GBjWyG3mtZSqLHS0CKyja3JnM0zPnN2zSzFyMGI2e0D29P6MadCtMz5GLpJ7v8vcs8Pxu8mHfDrdUI5YkB7gTpGSSgSCZ6+4dlUabdzWNkkiXwXlCLdrm3yMQeiSziF6OhhZnQ9cdI71yzw8ZSbynbGu4wXz+CuT7vKxDOVbYJ2YljAy6dHm4kNrMbQO+oeFj/FBYuX8mReMcds37TWittJKsGDOWUrGom3odNxG57TMxw+XWMUissRmVpSbIWH4zdCgNfUkaT09e89HeqSwabukaRxskrNjlnj91HDC+pEz8+Qe7ofX3e6pjhLO9tSJYxvS+gxxLinO3kuuyXIZcykt0wuYgOSuvnFRoYBjatlBq7aMlUTsk7fT3MeJYyzctqqW7NpxlJZC0EgNm05uYJI0nTLuavkvwI65p2zXKrmz/i2/tf8Agp1Y6/tMrDXEYOl9FYAgHpdYg7p2VOTsKSqt8Rb12+5l8SG9bXPcMkCpStsZt33Nk5OcTuPewtlrmZUuWoUO5UZFCAqjKAsjeDuT2mlhc9MGoJEoAoAoAoAoAoDjvh+87C/qXvxtVKIZynhVm47EW0DkQSCVAGoAPSIHnECe0jtFWkk1qIScXdeupY3rGKCEth0KIFU/2bABsmRVAJkHMkRI1FVUUtLlpTcndpeGn0M/zNi/Q7ehI2s7gsO3XVT640qbIrqRkwt4xGFtmUFwRbTVDsR2n9Hzu6lkLsf/ADTivRLQ1jUWRrmCxqfpEClkLsrGxYBINm1IMH5Ndxv1VOUi4tviOWctu2JBBhFEgiCDA2I6qZRcePG7mXLC5YyxGmWIiOyANO6mUXK12kk9pJ+2rECUAUAUAUAUAUAUAUAUAUAUAUAUAUAUAUAUAUAUAUBdcjj/AFyx+0X94VVko9WGqFhKAKAKAKAKAKA454fz08J+zv8A71mpRDNd8D3JbD4+9iFvG4ObS2ym25QyXJ1I31RSO8A1aTIR1RvBRgDvdxZ1nXEvvOafXm19dULGA8EXDgQwfFZhEHxhpEAgQeqASPrNTcGSeCbACIuYsZVyCMQwhNOgOxdBptpUARfBLw8ai5iwdNsQ3zYy/ZAj1VNwMN4GOFEknxgkmSTeMkncnSmZkWPNJxLd1S3qQkJ403dTMybB403dTMxYPGm7qZmLB403dTMxYm8G+VvKjbGZjQ6An/atsOlOoovY58VN06Mpx3X3RticnrH6f3v5V6nwVLt8zw/1Ov2eQ6vJrD/p/e/lUrA0u3zM30riFy8h5OS2G/T+9/Kp+ApdvmUfS+J7PIcXklhf0/v/AMqn4Cj2+ZX9ZxPZ5Gfkjhf0/v8A8qfAUe3zJ/WMT2eRX2eTmHL3VOeEcKOl1G3bbXTtY15lenGFRxXD7I3qdKV4wg1bVXen/Zr2HvJjDfp/e/lXM2Zfq+J7PIXyYw36f3v5Vm5sfq+J7PIyTkvhevP9/wDlWcq0lsWh0vXb1t5ElOSGEP8Aiff/AJVzyxVRcjsh0hUfIa4tyUwtuxduLnzJbdhLyJCkiRFVhi6rmk7b8jqpYqcpJMrPzFY/S+9/KvqvgqXaR8TMQ8Dsfpfe/lT4Kn2j4mYjcDsAA9KDsc3WNxtv3VPwNPt8yixsm2uQrcCsAwc09YzajuOm/dT4Gn2kxxkpK6F/MVj9L738qj4Kl2+Zb4mZW8U4dbtsoWYIJMmdiI/Guavh4Qkku32NYV5OLZJ5L2guLsEf4ifjXLVgopWN6NRybuepjXOdAlAFAFAFAFAFAcb/ACgP7TCfs8R+9YqVuHsM/k6/3jGfsrX771MiEdNxvKO4mNOFhYLWApIMkPPPCZ84ShHrNczqtTy9x61PAwnheu12lfw/b7kLC8exj4JcULlrMz2VKnD3FUc66IQC1wZwDcBzDQwR6qqpNwzX5cP8m88HhoYp0XF2Sk/3p7JvhHTa1nqO3eP4lWxIzIeYZEA5i4A2bmMzc7nyz8o3Q3Ghp1krvs7O7iUWCouNN2fzJv8Acv8AtpltfgtdidxvjV2098KFK2bFq+QRqVNy6LwmYnJb07+2rzqOLfYkzDDYSnVjDNe8pSj6LL6vXsLXgt+49i3cu5Q7rnIXYBtVXcyQpAJ6yCa0g24ps5MTCEKsow2WmvZu/Fnipt6vLc50dg5H+DzD4zhWExCYbnL7YpRdbnGX+rreYXdC4XzB1CeyoJNvveDLhS+MFOHPfKXkRbaYi4rZGs2GYy90AwXY6mgMLPgj4VavvcKPiEuPks2OcIS2yqTczuCGIBVtyYiIYmgNF8LvITC4SymMwitaU3TZu2GYvkfKzKysSTBCnrO67aigNA5M/wB5T/y/dNdOE/5o/nBnJj//AB5eH1R2P804VLSPcuMGa0tzLziAvmtM0AZCU6QVRMzn02r1FVqOTSXG2z59547w1GME5PW191rp3E1sDgC2t3cr5txFVQXCkxkOy9LfqqsaldLb0f38CKlDCt3zctmlxty8RkYHC57aC8YdCTcLJlV8oIkDVRMgq2o013rZVauVvLs9tdjllh8PnjHNut7q1/buZZWcPgiC3OATbIAZllJTosVAl3knaIK94rNzr3tbj2/XgjZUsI1mutrcNNN7cWM4vAYULcK3SSs5ZuWzJAXLAUdMMSw0jLl1rSFWq2rx9H+K3qc9XD4aMZOM9u1dltt768rWNNsf2uI/aD/02q8rGv8ArS8PojGr/wAdL/1f/wBSOn8Z4DYxD4dOfFq61hcqC3OaAxLEggdR+yuI93E4OnXlCLlaVtFY1PGcC5vCnEF+kLzWSgGkrmkhp/R7Kyk9Lnk1MD1dDrG9b2sbNw/gi4a5jLWbnP6qXBKgQTn2EnsqLWbXYenQwkcPKpC9/lv9SkHAMpwQ5w/1pQfN8yQm2vS87u2rB075e05I4XK6Szfv9Nij5YWuat4uzObIt1ZiJhTrFZqnlqLvNabyYlU77SSNb52vurGxZcBtI7XM6hoCxIka5p0+oVKODHTlBRyu17+xtPAeCW7xuKuW3lCtIQGTnCiRI2zb1jXq9Uk0r3MsLRninJSm9F376cym4lwxLVx7TImZGKkgCNOsGJ761pyjOKkuJWo61ObhKTuu01u3d0pvqetsVnGGl0/Vb8Vrgxf749z9jen+x969zPk7/erH7VP3hXBX2R04b9zPUprlOwSgCgCgCgCgCgOO+H8dLCfs8R+NmpRDI/5Ov94xn7K1++9TII69iuT1q5eF9i2Zblu4IiAbaMoG2xDa+oVi6acrnbTxtSFJ00lZprzafsGE5O2bdrmJuNbm2Qr3GYLzTBkC/REqNBvFFSilYVMdVnU6zRPXZLW6s78x+/way6XUIMXnDvDMCWAQAggyultduypcE01zM4YqpGUZJ6xVlottfPdka5ybssIZrjSLatmcuXS1ca4qOWkkEsQe0aVHVI1WPqp3SS3asrWbSV1bu07dSdwvAixaWyrFlQQuaJCycq6dQEAdwFWjHKrGFes61R1GtXv38X47niht6vLcwR0jgPhFs4fhuFwYW+LlnFJedkICtbF4u6A5gTKmIIioJNpxXhf4ZeF5LtjGZLl1LoyMtthktWlHSS6COlbJ0OxFAMp4cbdy/cGIwr+LSGsm2+XEWyogksCs5pOxEAlekDQGoeEnwgjiCW8NYtNZw1ti4DtnuXLhB6bkk69Jusk5iSewDVuTX94T6/3TXThP+aP5wZyY/wD8eXh9Ub8rV7qPl2WeAxqKMty0t1PWUdf1XHV3MGHd11WUG9Yuz9PIvCpFK043Xk/Ms1bh3/dz2Ta/ej/61RfEf9fUlrB/9/QL3FlNs2bdvIhjdy7aGSSYAzSBqANJGs6XjRefPJ3ZnUxKdN0oRsu+/b5kENXRc4bFXhz8pf8A2g/9Nqvncc/68vD6I7Kv/HS/9X/9SNnblVdN+ziMiZrKZFGuUjKwk6zPSNcLZ0vpCbqxqWXyqxlguVt1FdGtWbqPca5luKWCsxk5ddvXVMxNPpKcU04pptvXtEfldfa5euMqE3rfNEQQFWD5uu+pOs71Rzd2P1Ko5yk0vmVu4d4fyyvW7dtDas3DaEW3dCXUdUEH1DSNhUKbSsWp9JzhFRcU7bNmrcpcU121iLjas63GPVqQSY7qrHWVzLD1HUxUZvdyX1KGa+1zHq5C25PXINwdoX3ZvjURfzM4OkYPLB9/sbng+U4tqV8XQArlOSFJ6SmSWVsx6Pzp3+qsKmFcnfM/H8XoRQxqhG2ReGns/W/sUnGeKi82bm7duJnKILSZLXDoGbvgVtSp9WrXb7/YpVn10rqKXd78zUFNIPQ9WcNSBxHz1/VP4rXFi3ece5+xeCtB969yRye/vNj9on7wrgr7I6cNuz1Ka5TrEoAoAoAoAoAoDj3h+87Cfs8R+NmpRDNA5Ecs73DHuvZt27huqqnPmgBSSIykdtXauVubd/TnjvRsP/qfxVGUm4f05470bD/6n8VMouH9OeO9Gw/+p/FTKLh/TnjvRsP/AKn8VMouH9OeO9Gw/wDqfxUyi5yU4Ydpo0Lh4qO00yoXDxUdpplFw8VHaaZRcPFR2mmUXH8AeacXBqROh21BHVV6UurkpLgZVoKrBwfEuRyiufQT3/Guz46fJHB+l0/5P0MxymufQT3/ABqfj58kV/Saf8n6GQ5U3foJ/m+NPj58kQ+h6T/ufp9jIcrLv+Gn+b41P6hPkiv6NS/k/T7C+V13/DT/ADfGp/UZ8l6kfotL+T9PsM2uUlwM7ZE6bZjvoQqrpr2KK4Kz62bm+JrLoqnKMVmeitw5t+455VXf8NP83xrHqlzKfo1L+T9PsJ5U3f8ADT/N8ajqVzH6PS/k/T7B5U3f8NP83xqPh1zH6PS/k/T7C+VV3/DT/N8aj4dcx+j0v5P0+w1iuUdx0ZCiAMpUkTOojTWpVBJ3uXpdF06c1NSejvwIv52f6K+/416fxs+SO7qEIeKN9Fff8aPGSfBBUkuIn5zb6K+/41Hxb5Inq+0Pzm30V9/xp8XLkh1faZfnV/or7/jU/Gz5IjqUM3sazEEgaAjr64+FZVMRKbTaHUq1ix5MXS2Ksj/qJ+8KxqTckXpU1F6Hqs1ibCUAUAUAUAUAUBxz8oBungx2piPxsVKByHmj3faKtcrYOaPd9opcWDmj3faPjS4sLzX/ADT40uLBzX/NPjS4sYlO/wDD41FxYSO/8PjTMLBFMwsEUzCwlMwsEUuLB9YpcWFC0uLC5DS4sTMNwXE3FD27Fx1MgMqFgSCQdR3gj6qXFiLcw7qSrAhlJBB0IIMEEdRBpcWMebNLiwhX1fbS4sAU9320uLC5DU3FgFs0uLC80aXFhCvePtHxpcWFFvvH2j40uLGYw57R94UuLGa4Jj1r94UuLDy8JuHYp94U1Fh1eBXT1p96moMxyeu/St/f/lU6jQm8neGumLsyQYuJMZiNxscsH7arqEeoTVSwlAFAFAFAFAFARsZw+zdjnbVu5ExnRXid4zAxsKAjeT+C9Ew/sbf8NAHk9gvRMP7G3/DQB5PYL0TD+xt/w0AeT2C9Ew/sbf8ADQB5PYL0TD+xt/w0Bhd4DgFBZsLhgoBJJs2wABuSSugoDmHKfl5wtC1vA4DDX2WQbz2UXDqe7ohrn1QOwmgOS8SxvPXXumGZjJW2otWljQBVXQCAKkDdpLr+ZbB7gCx91AXfDeRvFb8c3g2IPziMg+1yKi4Nx4H4IeI50e62GthWVoJN06EGCoXKR3ZqA7H5O4L0TD+xt/w0BExPIvhjtmbBYcnt5pRt6hQDfkHwr0HD+zFAHkHwr0HD+zFAHkHwr0HD+zFAHkJwr0HD+zFAWWH4DhEUKmGsqoEAC0mg+ygNc5fchvHrKW7DWrBR85+SEP0SACVgiJPbQHMsd4IOKJOTxe7+rcKk/U6ge+puDW+IciuL2tXwNyP0V53/ANRalwUjIwbJdQo3ZqrfWpg0BvnJDlvfwaLaazbxNhdArKBeUT8y5ENGujDukUsDsXJbj2Ax9vPh8hIjPbZFW7bJ6nXq69RIMaGoBeDC2/oJ90fCgMhZX6I+wUAuQdg+ygFyjsoAyjsoBaAKAKAKAKAKAKAKAKAKAKAKAKAKA1Dwick8RxG3bs28SLNoEm4hUtzh6OSYYaCDoesg9QoDWU8DVtgq3cQMq7LbQqPrl9T30Bf8M8F3DbUE2zcI+lHwn30BtOC4Th7X9naRfUon7TrQE2gCgCgCgCgCgCgCgCgCgCgCgGcVhLd0ZbltLg7HUMPsYUBr+J8H/DG1GGW2f+kTbH3VOX3VNwU9rwZW7OJTE4XEPaZSuYFA2dQekpKld1kbdnYKA31AQACZPbUAWgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgCgP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMWFhUXGRgYGRgYGBgZHxgaGBgaGxgbGBoYHSkgGBslGxoXITEhJSkrLi4uGiAzODMsNygtLisBCgoKDg0OGxAQGi0mHyUtLi8wLS81LS0wLy0tLy0tMDUtLS8tLS0tNy8tLy0uLy0tLS4tNS0tLS0tLS01LSstLf/AABEIALYBFQMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAIDBQYBCAf/xABNEAABAgQEAgYHAwcICgMBAAABAhEAAyExBBJBUQVhEyJxgZHwBgcUobHR4SMywRdCUnKz0vEkNDVDU1RjkxUlM0Ric4KDwtN0kqNk/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAMCBAUBBv/EAC4RAAICAQQABAUEAgMAAAAAAAABAgMRBBIhMUFRcfAFEyIyYYGRodEU4SOx8f/aAAwDAQACEQMRAD8AB436x+JS8TiJacQyUTpqEjopRZKZigkOUOaCBU+s7iZ/3of5Un8EUMZr0qmfyrFgAP7TPrWn2ynDO3u1gCWK2ZhRiwq7uGqbeHhZio+RSlKWXyboesbiuuIHL7KV+5Dz6xeKaT//AMpP7kZWWp26ttjyfU6MRSJ5eKY1HgIcq4eRUndanwzSH1icT/vFr/ZSaONepvEX5SeJsD7SK/4Um4v+ZFJkJcgtmDGtDUEO9GdjXaKro60LfhXWkEqorwJwulJdmv8Ayj8VLtiQ3OXI/cvyjqfWNxXXE7/1Un9yMvhpLa1pXa9Oyo8Id0rFhTdjHFVHyB3TzwzUq9Y3EwW9pGn9VJodX6kOR6wuKGvtFK2lSdv1LRm8rpd3b+NBoHc98MkpVZId2p/GJfKjnoj8+x9M0U31jcVo2KFdOhlEl/8AogQ+s/iwUQrEBh/hSBX/AOu8Z+eQXS4FzuC1mIB1pt2QEZKiwoHFzS/M0A+fZC7K4+CLNVk8cs0n5WeKuR7SKFqSJVab5Ganv8JfyqcVr/KR/kyj/wCFoyKMMfEeGwNO/wDhD1pB00oA5sK3rue+Fqp+I6VnOEa2R61OKKVlGJHP7GTTn9y0Ty/WlxI06erUHRSvwRGHw8oOouBqXcPyAZvhBQk2INj1WZ73N2NvLRONax0RbeezXK9Z3FG/nFXL/YybUb8y9/dHZPrK4rmyqxIflKkH3hMY5c3LQF9/DT5iCpKSzgOzDs5e4+Biari30LnZJLs2sv0/4mpwMTUf4UmtrdSsRD1jcSBZWJB1LSpQ7qy7xnhMypGZwS40Yimuv4N4MXP1NAaks5AuGzDWlfwhjrr8isrbW8ZZqMb6zMcEujEHasuT+5AMr1n8TcPiaH/Bk2dnHVrr4GMmU21FyO17Xow86wEMCdviX8vCpwWehsHNLG5s2yvWdxMf7yDp/spXd+ZBMv1i8TIH25H/AGpWtR+ZsRHz0Y/KHbx/D3wR/pDqgBu4xFbPIJfOxw2bs+sfiAviv/yk+D5IdN9YXEspUnE206ORqQKDJWpEfOJuLzEBJzClSGYtUX0f4Q+WpTVJiS2eQbbV3Jm6PrN4i/8AOaf8qS+1OpUwj6zuI5X9p7ujk/uRhJqmVmdyOdjdwUnSNRwbDpXwmctKUqmysUiYssCsSFy8l75OkumwuYW1FeBP68fczQYD1kY9R609r2lyr6B8kW6PTTGlDnEsr9SSdW/Qig4NgEpweNmrQkjJLRKUQCRMUQpk6hQTU7CNFxOUuXjly8LIlrJRLHR9ElQAMuWSQk9VIe5LX5xLMOtpStdvElN8/wC/6K2f6acUGbLiXCSRSXJLtt1KiK+f6yOIhJIxJ1b7KT3fmRs5U5MtJ9oRgyvIodDKlS1qzWBWtKcssJuQ5/CAMFwaQ+CzSkKy4fETFAgfaKlqVl6Rvvi1zpFKc1nCL0I2cLcVvo76b8RnJJmYkggkEdFJowp+ZvFir0xxmV/aC9vuSb2/Q3iu4J6UFS5QVhsKBMVLBAkITRRAVUB6ORAvpApMmdOlCgTNWlIfQKLc6UrGZbOxvMZPGTc0lcOpI+u+hmOmT8HKmzVZlqzuWSHaYoCiQBYCwhQL6uH/ANHSHZ/tLf8ANXCjTj9qKc/uZ529ICBjcXVNcTiN6fbKvT4PAstd6X1r4X7u88mk9JFD23GdVz7VPq5cATZjgCzFw7gnqhiKuIiZptT6nfX3Rbi+DPtXLLOVOYM2mr0Ohh8tTln18tAMtdvPxg3DzAkg1evjpW8PjyVJRwiYBQtrpUbc9RpA89NfPk/WDZE/Ma8j5fuiLHJqflsIm+hMJ4lhgs1dlAAFjvoNe0gt/CIpLWUSDV6cqa707olEku522+MM6MqNSKUoBra1/pEcllSi0FpWEpu5LXD0q+tOxvBqwTsS1y/Y7N3tQ/j3RzL+aB28oU/DOb9zWiXL6IZjnLIh1y9G+jU+UdmynN6bPtE8tAo0OEguE62pXuHjHVHJ12JsgWEix0t4293iIDnJGpfx/GD8RgilwxDGzVDEu/P5RFNw7mldi19nGlO3aOOLG1yS8QFaHFBRhbMzpYGqncmhLUGajCkcRLmTDQkXs7NdjzNanlByMASQEmppf5s0cmYQpN6MGI2NYXKtmhQlJbn0V0uWoABLm/zPMhg7t8HNhh5h8dBv/CJ8LIYAsCK1JAezi5qCfNYcOHlRq4oaso7tYfSDdGPiSlpZzSxHskxSsz1et3FX1L98DFBJKXzM4JSXoKd4YO40g3C8PKhR3eh2rsK+eUcODKSoKAe1OR31ffaOucXLGeRdfw6zblrh9As9WXJlJbVtRv3u3dFZMQogJqA9die1qRoFYL7wdsqX8/KK84YrJUrcuaCrE0FBaOzSYqNE48Y698leiQCB7w23bRj26Hk8YwjTJdOq/Wc/IH8YtkYYOPPcfpHJkvKRtR+67RF1CnOUck82SliyXU3YA4YEEHR+/lDMJhgUZjUGobsuq+ujRZzyieyJVCwBLVLVYDlvDMBgJiGQqWOtYt96l37zSlo4uypOzbHGeSlRhxmIU9vf5LxqvRFPsyzMACnC5c2Wr7q5SgAUlqseyhANbQzF8FCVAkDNUq7/AKOe+B5mJALtRmA778qNHWl4iZamU1/xstMdxoTckiXKEmTKCsssLK3UsupalkAqJsKUAaLtPpMFzMQpWGK04hMqWoCcUFIlBqKSlyFMCRSzVjEJQekLamrbRfcNAqGchqe8HzvFW1qKycU5Kxc94z79DS4fEYQIJRhe4YhfOzoqIanikwTMNlSnLLRMQQouJgW7g2y0JFCa+EBS0gUUGLU/GA1YgpOWwdw/wpzjBsvlue09PpqHJJ44LOZiMLKyr9hAUghaQrEzCARUEjLWoFNWjI8TxfTzFTVkKKlKURUOVFz2By0WuKOfM7saPXWwinm4MoGYjqjuuOXwjlc219RrRpUekfcPVr/RuH7Jn7VcKF6tw3DpH/c/arjsbEftRjWfe/U82+kanx+MAIGXE4gkuP7ZVWP4QEizgDtqXfcWpyjvpY44hi1D+9T2N7TFPTW4gbDZlABxpcgCtLqIAAoDUeFYdGRWnDxQWia7PY76C2lW+sGS5xZj4v8AGAJKwaUD6AasNy413r7iZBc6Jbfag7/qYdGRVsj5BchawpwcodwfewIsfNIMUTrXl9YqUYkZnFnNB+EGInZr9t/PKHKRXnWw1E5gwHkvEJS4KrVokVvZ+UclywdYmEkB+TMR2F+92bvhiWeBKaTBApjq3b4O0ShROvKHy5YKkgMC7OaAWrWw1jrAGp8PNYnGLwdkzqQ5818tDlLoLdz++IiqnPz+EclJK1BKRWzJc5q3AMTyokoVym8BXSUHns93mkSGXnJZLGpASCQKuADU71OguYsuF+jc6a+UVTUgvQVA5PQ+7nGhwfDESCFIdxmCwpIykMQcpUxLFmtcRS1PxKuK2weZe+zb0Xwnb9Vv7e+jMYHg+YZ1KI6wSR31e7aRYp9G0LKcrlQe1c1dVFw7EbO4pWNFhcVKkZgVZ3JItVNWBZg5TlYXIiHE8WkJmqEtIMoozNltyvYFuyo7M2V2qtb25/Bqp6erjC/2UqfR5KUPlQAlX+0c9ahUASOR0egNmIi1wHo+iYQ5yhTNYuzgjMLaN2VFogwYXMJLqbKSwJZOZLuALsHpHZk6YgHNlCUvuEqBGZqbhjl5c4jZo7p8buTi+IRSyuEHf6IkyhRLhgSQQXdgzve5alaPUxUzcDIVMVlZ8zVNWzBIBKdS41LxLKxZVZQDl6hyo0qCzCm9WFYhxOHCVIm5gQT1QmjOAwSAL1Batalo7VpZ1Sak+X6klrI2RTXS9Cv4rgkIMwIzdZRKAyQMrsRSpqCNLCKCavQakkkEsKsGGlKd0aCYkJWUgUANVEUBq5UAwol6F9doBQhAVkFSlX3gaNQkhy7ZTQEVe9DFne1KNS5fYQjDErus8ckBw6nyswo5a23vgzEYIKGUhwA5LVDXNoseH4NOUk9Y71cMwH4CJJ+EALkOCAXbnryF42a4SUPqeWeP+I6muy5fLTSX5z+pRcKlqQsSgARVQ1KnvpSwHhGqn5QGygFgbBzyftrFJnKFkpy3cfL8ItJU9MxAJFRX3+fNYRKGGZmobf1A3HgcoWBdnYsbW+MY6RnUpiBz7qRssZNfqEBiabDNzfdj8YE/0a605KCx1qNop32JPGSxpFLY8LsrJWFJALFwz930i04TLOfXT6PFnLknLt2gGncK/WDJcmWTQ1N4ytTqo7Wky9TorHNbkLHSaJUb2884ExaBXnbtgziocpKTZ+7n778or1rJRSpFBzLRiKTlhnt9Np41rakRsGDXbyKRVcSxFb0q4B/hESsQpL+e6KbiOIJck9n4281i/VS85Lj2qJ6D9Win4bhyLfaftVwoj9Vin4XhiAwIXT/urhRrx6PLWfe/U8x+mQfiGMLf7zOFN+lXAUjEliDRqt3vra/wiw9L0j2/Gf8AyZ/j0q4p1qLk78z+N9IkhbWSwwswKL0FTyuaDsh2OmlIAbRxzfX4B+UA4SYyqEvUd5oP4a98OlkFgdDXs1rp9YmpC3XzkscwNQGs9XqzHxv84Mw6rXpfzpAAXaj6vvbXk0ESlbhvn50h0WVrIlpnBMG4dRHVZwfh5+MVmFmas7c/NItMFiXNTXtaLNbKFqa6R2ZhqOLvV2toXNN72iCemgILjY9v1gwrJcCgIv284bLQ56wO1Ka/KLGBMZPKBpWHKiEgVLOda1BHd2++LvCfYHqyUqCtLuLGoehr3i0P4dwwZCtUwpSRUUFSSKgG1LmNDwXh6UALKAU9pepdhmpswb4tGTqbozTxylx6v1PYaKh0QWViTXPmv0LBHFxg8PLUEJVMmuQlyKgUDmrAOA13esYniPE5s0vnCUqyugOKglnTqXcvvBHpHxMzZpZS05ScqSXAqeVr3a8B4fCnOOpmJq5oTdyNGod/u9sP0OiVUd8ktz55M7V6tWSaTeM+BzBy1KsWc7a3+UE4MoSQJgBd3ZTihB8WOnYWYxLJ4jQggPoVAc9ARRqF+W0DDCkpK6Uf6WF40lXKecrBmz1EKopp7vUuOG8aRJLucinls3WqCEqralCW8YtJeNlz0hLFJJGUkMDk/RLVUWodgraMPNDl1CtWZgQxfs38eQhuDmkVqlWikh+waNUEuKs94VbpIN98natbJeWC4/0VNTMIlkFiCSkk5QWuU22c3pzbglKQGWsApBUK1RShALO7hojwHEiBlzFJSwfMWP3lFxWps48DrSYlWZWYuSaVrYMGJNaNoNmg2Wt4lj1GKdKjlZ9C24rPlBMtBJZk6GtVdZ7hi2mz8ocKErUcpLId8xFUpf7p0d6eRCwM7pFiSmWnIS4cBSh1QCSSzhwFNpW8CS8GqWsgqBKTvd7sWDxRpqSv2tYff7s1bNTL/Gc4vKzj9jRy52Vm/OGzjw1JBiCesmr2Fj3ct4IkSgGrua77QNiEvahrStGjY24PIz1CseGv9A6JZX1CN69nz2jsoFEwpdww1+PwiWclhet3aBQCVE2IA3DjbxaKV+fAklFrn7cP9wrDyipVS6dCdC8XoGWzEgAjYiK3hPWoGcH3eWg6YqgIFQ4+d++PMa63EsZNv4ZSnHhc5J1TWL5RWha3ujsiUH6wd9PPbAGOIDOS476AcoK4JOIU7OPm3nvjJsy4uSPQ01tNJoI44cqQA1fLRT56FhT8de6NFx9AXLDXFfPdGWxmJagpT5fWI0LKwbFbw8lPxHEALNntYU83/GM5j6qo5DA27Pe8W/ElXI3fsPd2+4RUz1lwAz9xZ+2kbVawhdzbzk9E+qY/6pwv6q/2q4UP9ViW4XhgNpn7Vcci8ujzVn3P1PM/pkt8di0t93E4guOc1Tv4CKkBywro0Wnpes+340hv5xiBYWMxY779vhFUzB28/wAY6QI8o0MEST3vTz2UiI+GvujrG/3iSzc/x89/QCUYmpB7v4QWC5v2vr5JisKiORHn5QYMWCABQPbsB5RNSFTgWMokea3186QVhlJC6v2/J4r85ACuwZmo/wA/rDSvUOXa/v1h8ZlWVTayaLpw2XR32LiLPg8vMc4IBFQ5LuK09/hvGewUp61Io7CxbVnpevwizwmMVLKQ4SAHoACHABfWz72iGovcoOEOy98O0KqsVtn6f2aboyQVGwOUJAAAtZ2Or3N3o9TOI4xJw6cr5kli5Iq21Mw0t8Yz0jHmZMQzMQxS+ZXblsd+7d4Px3DSqT0yHAzKBSWJuGcvZ1M1W+FTTNRnCNnGHx/Rpa9t1TdfkVslGd3FdywHKp7/AAgiTKIdsrJbba72Z4gwKg4Ct7jS/cd/xizxapYV9kpQqXCnANKBLXDN/wDaPQyuSkos8qqZSqcoY78+ff6kScEgLZausf0S7OLqcX+sFIkhAIJd3YjYjS3gfnAaA6ne3cByD9p2qYLStqEg0bsEOT82ZGok1LaV3EJQAYdY38+Pwiu6EggkN2vWnIuxZu+L7EYV1BqPRvp74JxHDAkEXLXemhAPg7QSScshXftikUEi7MzhjfYV30J+lIS5BBfzvXwB7otMThAwIZ035wKqW6TR9P4xNpYJx1GXlMrkBWcJSEk3cvo57HLi9y1RBEyeVrBUxUTqALaNoWq3OOzJJJShLOVJNk1IFBmZxRw1KmsEYpKlz0pKyeqnI+33avsyq8tHjObktR4YZtqcZaGTbfHv2w2XMdIDUL07NjpvEc8AVqSnlo/vjmMBQoJcGvOhtF9NwSAcwNC3OLFlyXB51QeFPHBWFiMzMWHO12aA5hHVewPl/O8HyZKipglkgkBzv2vV320iyxOFkpASpQOYMwAcGl/Fu7WMLXa6C67PRfDPh1sottrZ2m1w/D8AvCpAzAgUNfPnWHzFuVABqv4fjFlw1WVJQ38GipmTwlauR8d48tOxzsZ6vS6eKhlJIasuSnTbtAf4jxgPheLUglBDh+1gxNe4HwiLiOP61GSAxNfl2RT8Snh8yrPfn8eUPrq3LD8S3GCTzE2OL4ifui+23btGS4jPYl7Od/J+kQp4ql+rsAT2ijAnkR4bxRcUxJzEeffzixRpdrLNkowhubCsXiEqDJq7eMV65oTUgZgWN9Ndn+RgUTb0289kQzs1CQQPieXfGgq/Ay7dZnlHqD1WqfheGNnEz9quFEXqi/ojCfqr/arhRYSwZEnmTZ5t9Llk4/FggN7RPuAH+2ma31Pu2immLeoFmHIsKPzLGLf0v/n2MJdvaZ4pr9qvV6dwimKjWzE8u2g07vxjpEcFjUbNXb5wlJNFavpTsI2sYSUsXI7KXqz1FYSGcUpQnsF4AO5qF96c96jW0RvD5gJL710/Cg7BDkyr/jHQCJZKiOwDwEWKZAJfTv1+XPaApUtrXi1w85g5Y1sz1jsptLgfRVGT+ot8LixLSNEsQFCjaVKWJ2P8IFml6JA3Ub0FaatWAcTPzCpNH7+wQNISasFW56EW567UMKqq2y3PsuX3qcdsVlFxw85esg9YuyXNhXXvPhGrWvpcOAosSt0pS5LA5SFhuqLAP4RjsJPWhmUpJs4PiATTX4Wi84bxTI7qJBcKBBd2u5NS+2wpEr96xKK5XXmLoVct0ZPjxXh/3kaJxSrKR1mG5FKGjVBIi8WhYEvO8s2oBmJBoGuKM3fFNxCYoL6RIuynDBs1i36TULxccHwaVypisygsFGRSqkOetR6Eu7gn5vne1GNkvfh+hRhpUnOupv2/5GzSK3a9anmYklVKQSyaHkaltNYgGEEpSlrmLWhmIJJrodwRTlS0WU/GMmXMCAJSPvJKQ5zUF/vdfLYP94XpBZ8RcZLHRkVfBLL3L6ufyWhVLBQqgUEmhYl9i8VvpBiLZSa3AUPn7+cLicgmYtKUlpYcq/SJdkkVZg57xGVxq1mYyXAvpV+w/j3x3S62T7YnXfD1VJJceYWrGtSxNam/mkHomgJATUmtja5bw8IrxgmAzMdNdYtvYkqSkilG39xjRWoeMmTNQysFZi0pWMgbNcfIDe1oficOpI6Vl5jl65cuXd61tarfgWng5mKplZLdYltbcya9wOrRzHYSaxIcEAgJCiW6osTUb1+kIlbGc+ZdG9pKGtP9v3Z9+/7AcTNCgHJehftvbvi89HFLWDnKlJR3O5v2ini8ZxHXUlJd0hjztcm1H0jcYCT0aZSrZkhSgUsFH7th973isZ+v1Py498sh8O0kLrmkvpXOPf7h8/7JLgUqXu4arDQs0Z7jDqUJgFqkM2Vn37Lbxd8RxDkEAhJfrVI0AbYs3hFFjZiUZaghm56v+EeY+Y3PPiex+VuioLhFlwTE0B0PNzTWKfj0zItRH51f4QDhMaZaikORVvjX3QHxbFhgo37bHYcxEq6H8zPgXqoKMAGey1OXIY7wzFTEFJBLpDPytp5sIrTxAua/wiunzSosSz7/ADjUhVyRnqK648DlYgZmoA537u4cqxGtXf2xAtTVqQ5FCQ/e3ZDhPADs9qMbVo4Li0WlEyZ6hyymQzlN26jQ7W5HurDUzCa5SK3JvVNBS9ySd/FTFmxd2IP/AA3DF7Ghp5Dc1KX5w3BUb57PUXqi/ojCfqr/AGq4UN9T5/1PhP1V/tVwo6LfZ5s9Lf5/i62xM8jWvSq07QBFVOmlVC1D+iBcAXFSKCnazOYtfSsD2/GE6YmdTQjpVu5008TaKkFqH3vSorTl/CA4dWa9ZywA2owbSzN3R3QnsZzVrNz08IaXsAd6/GHpTSOgdQl6tQefLwahmFN/oDAqEfX6QZLoORo/13t4iIsJxY2QtidBqeWtvNINkW1o1X+EV6lVpTveJUYiw0EdY3rgLUmg2rX5xyVMASyfvHXYbDth6FpatVECu13o1XENVKLaA6ODX8Gg3ZfJYhW4wzHjzfvoJkryKBWHZ9ASSRQknn7jFnIxij91CcxPVRlSHNMzgBqMKnk1YrQygVTDTQONe9+6LTDoKcq5bpSSkkkM/wCiyju5LVtrCptdvv8Agswi84i+P5LSdiOiZRSCVoD9VwCKG4rc0rflHOD4zoZmZaCHBDkEghqpAtbwpWFNxxCklctJUwKABlCXVdmJNhev4Ox+HdMtbKYh2BeppQUyh33NS9YlRKMo7JrteYrURnF74vp9Y/csjxUrSoplZUklyqtVFyPeLQ9S5pmy0yyjKkjOD901SWLgkJDgO192ipwwWKlRZ8zG1KupNjBGJxSHcEdIsBIBSpVHIB2JCWoRp3Q+eijjEfz+f3KlWslGblLP8fwajD+kHSYhUghE2Qs9YsUqSxy06zUIDm9Hil9I5akqypQlhQANQDVWr1TW3bFZ6O8SOGnLmBKZilJCcpBtQEClCxvy5mNViJK55ExCiCwKg1H1Y+bRm2x/xbV5YOayr/Ioc9vXkY6TjFHqrSU3Zqu1aPfsEWwmpIBS6i5oO5qX38ip+MwRS4CWLF1Dnc2pR4r50nKAsAVAPVZ3DVbeths8XoX/ADFwzDp0EJ5lKLWPAOl4lCUhQBGcMRuRY5SKAgi+jG5ihn4g5jlcEs7H72gPZf6QQszVp6RAJS2UpvUs5vq9uXgNPmUCvukaM7N1XAsCKeN6UbWlGLXi/fJsaipTgorhJenrj+ibg8lS5pKgChJGc9rsK6Ei/ZUPU/HcZV0ysswCWkslJDAMNEkNUg2NYlRjEJPQj7imTZXWTUjMWuWIb4OYp+ITcs0mVMBYFJJYPUvQ6vXtjGusd08NcY4NTSaKGmrwu/EscZxIEnOqzkUAfXTU6xRTsWVnqqZ3fUjzvDMdLUqgTVzm0AI7a62iLiOeUArOGIpfzW0KrrimaEVueX0iPis9hmCmIcU1+usU0zGZkM9Nqaa+fnAs+aS+YnXx17IgzMQCzbvcH4axoRpSRSv1eZYj0JUyuzX5w7MFV05fWIlEHQW0PJhqak1anY0KWrlDsYKUZZfJ2YFJHVNyxqLjsqKHzYCiWXuzNTuDeMEzwHYMfPjECgC/u79fPuiSE2RSYgXN7u5JuXd1E3NYjJ/hCQCzkBhrbb5iOqWRyPKn10jovJ6m9T/9D4P9Vf7VcKF6nf6Hwf6q/wBquOQHDzb6XI/l2MJt7VP8ekVYa/UbxTmYXe1rUsGBpFv6WL/l+MH/APRiDrfpF86xUgdUVudxp8LwAdlvQ8+fkwSl6lnapbQEgeDn3iIUTyL17X57EHV+0RxBOzts1vD8I6dTwTLmijBqb31eHJXEBqaVD3ZqdmkSgsGbnp3fj5EBLOXkeZvm3KJJStr8uf8AGBys+a2vCTNaxLN4eaR1HdyDUO72fbnbWzaxayJQIGegs5NiPw7oo+nDU7zBXtRUACbat8Wv9IZvWOhlbjFvPP48C0GFS9aj9HetH8AaQdNxZWpOeiUuQkUGn0+sUkieXOnO/htB0mZmLkl6CnyijZJ55L8HDD2Ls03BV9ItGYOoAhybOQ5YlqAnbtgrH40gLQFDKSQBlAdNLM4SDWgJO8Z/DTwgBSFDMQQRqPHWLjhGJQV6Bkv1vzjplH5pLeXrSlxLfjouYco46yPRw0v1nDukBiWIIu/aRSzRPieHIUlIzJ6rO5LXJZPOtvIM6YdIt5nVBcvcVqwvrvonaBMTOT0a+jObajUYVA7BXtixDXWSa5K60EEmsdg+DlhS0qX1QAE3/Wq/LmddmA1XDpyk0yu4f5t4GMtwrMEpJAzAgs41tUfnZt6Hui/4JiwAFq+6+VybuHqRYuaE/wAE/EJxs79AprlGG1P8hM0makqCFNYJDUPPV3NYfgPR5RzCYkHKUnW4HWAYghgRb6w6XxqWlOQgJyvsOrUD7pAd3D/MPT4n0oSmYoJ+4SoVah/NUGr90Ed8LjqWoOuqOCK0n1ZZdS0SsElTMshRVZgBlqWc8ql/fGR4xxGWuYtWQErB6qS5SPzv+EVD2DwFiOIzJqisrzEEtRjdwQ+jv4CA04ZYWSUsXTsHCn07GjsXLdvk+SbUFHEVkkzrUsMahLAkVCedK0c6X2pEq5jnMVOdW7SQ8cSgqLEFKtOe45xJNCEI2a99Wgcm2SrrlY/wDYzigRRIJDA1DP8Ai0U/FuIZkhNyDcv/ANNDagNIbjsfUGjO/PXw1ilmznJrrqX8Yt00peBLU37Y7ckwW6Xo/dpZtYGmSwdPfvv7oRmZaAtEQmqaLajgx7Jp9krZbimw1pEKpxJ5Q2aT53ji9xalWZz2H6x3Apy8ESFTOCK/V4gmGsPE6wpTX36lnDMGEMlgk1Oh12+Fo5gi3kkKidjlF7U1YciSYjca/Xn+NHEcCmF6l37Kc4IEvKkKUk6kLBAdwCi7uxBNK1NaQHD1F6nf6Hwf6q/2q45C9Tv9DYP9Vf7VcKADzh6VyieIYpQYfymfchnQtRV941LMW1JYCwimKN2DOL9ujvvyi19Lg+Pxn/yZ/L+tX574qulc5mD1owAtcAAAdg1gAU4EEVJoK/8ASHGtrd3dD0JTlU+YEWYAh9AagiuofsiLq1rVw3ZV3GmkcSlzyaACYipAHde2/dWGqMLIWSkEEuDQC6gGGa5PLQg84cJRAcpOgcg0KhmSbapdtw5gAalZfyPfzjtzSgevJ+y4vDZUzKXYHkQD2e+E4uT86AcqCum3fHcgdrBBnuSSal7fLT6QOSSPNGbl2DuhZywDsx31OvbYdw2gAs5M5refjEyZzGjDfuHz/CKoKINPFvIBiVK+y2/P393ziDgmPhfsWC8RikkUoaV7HDjzpFrw3iKAtnJBSUuxNq27BGTTMf7rksVOHoAHsA4YAl/lDEzy7A63ftrCZ6fKwWqte0+UbTF44OXcEh3rbmw5v3iHJ4guWAUhzkIPMlLbF2f384zuExKmyhiNaPz+PxiT20kFIAYhrtq9K9nhCPlY4L6vjMuvbCpBCQHOU/eAZnsncl94fKml0yyeZKSdKAcjQ1inTxJAAAQ2Upo+YFgHNaupTq/6msI7hMWwKgSCxpyZh3XglWySknwmXs3EDMx6zAC52tyAew2hnCsD0lVoZAqVuajRI0UaKYCtYrJWPMqyUk3e7eb/ACg2TxYtnWoD/hBB9zUbbthThLHB1VqT5ZKvjXXWMuVL1/SIGhNso2FLXh6+LyyAQa6M1n12LRQYmeVKB3Jr2/CIJ6k5WQFEsS2jJDqPYwJ7tIbHTpnc7E8l3iOLFRcUBoCTUNfLtWKbieOUo1WVd5Ldu8Vs7F93IOab3OoiCbPDUNvPu/GLEKYxKlmuW1qI7ETiReBgouCRS+o8Hjit/fzr744F3t2V8aU8YeZM5uTyyTM9dmi54X6OzpyM4KES/wBJZZ+wAO3awgLgmDE3EyZavuTJyEElwC6g4B3YinMbxaesEqGNmyGZErLlSKCqUknve/ZEPmJWKH4z+giz5j4hx+eys4twpcksopIp1k1HfR4E6BwVBKzUJYAEAlmGZy5PWoBtWLf0dkqmCZJmBWVKM4e4+0TLIrocxpuntjX+iPEp0vCS0okLWUKPQgzpaZU/o8UjETJipaiFBSEy1DpqpADFmh09vcRqrmoKUufDPp/6fM+jV+iWbbegL7PE6sHMzKYKUylOWP5pqTpfRzH0tXEpktIwg4eppqDKSZk+WSUYZCpyV50tLAQub0pUeqU5SDR4XpLx7GiTOmqwq5CVJnS5i0zk1VNmSSiYUoJJAQlKc9llZU4zNEDh8ymYNbBWU0CqACmWqswuAHub20LRTQXIbLX7teryY1puax9DPrKl9c+yEoWVzVJVMSQZi5pm6SwMqZgQQGfqEk1jF8d4gMTiJ2IqnpZillJILAl6qpmN/CAD0z6nP6Gwf6q/2q4UO9UI/wBUYXSkzY/10zUUPdCgA81+mTDG4rf2nEE3/tVNy3ioBDau4ZmG70ufwj6D6Xer7iq8TiZ/sq1yzNmqSQpCyUFasrJCipgGYAU2vFPg/V5xOaVBGCm0r1kiWz7GblfuLwAZcgBIIJd6uBQ6EF3PgGhq1Atlf66/Fu6NVxL0C4hhUGdiMLklJIGZc2UAXLAEIXmJJYMK37RJhvVpxVac6MGVJUKHPKG4sVuK6HaADKFIDpJY10BGjDlrWukNKqM5DtRtQKfjW9Y2Uz1XcW0wai7GsyQKtX+sL1cPrejtDfyX8V1wajZ/tZIPY5WeWkAGQ0zOTp2XPz98OQbFQBZqGlKbMT8Y1ivVhxVmGEUzgt0sn9+pvWOH1YcWf+aK/wAyT/7IAMnMVmZgkUbtI1LmhPcIc42BtvYd7NbwHONYPVlxUV9jU4sRMkD/AM4X5M+LV/kiq3+1k7/r174AMmtZY9xYbafH3w6QgqUAkFRDqDBz1U5jQbAEnZo1P5M+K/3M8vtJO3/M7Id+TTijVwanYMRMk3cX+0sz86DnABkAp3Op7Nw/kQ5CT9NSfx+sa4erXimuDU9ST0sqpYX+03c98c/JrxVy2DUnZpspxyfpNtY6BnUYkVag7zTZxf3REicw32NbnTujS/kz4qBTCH/Mk9/9Z3Qj6s+K/wB0U/8AzJP/ALNojhE/mMoBPDM99Naa25mx+rxOsXZrd0Xw9WvFdcGbj+sk2/zIQ9WvFdcIr/Mk939ZHUkT+cyl9pBBJZzWjEO+2n1hIJBAYEmzdaptb4CsXaPVvxYD+aK5/aSeX+Ju3hHFerjixvgzb+1k/vx3CJLUyznxKRE9ufbYV94bsgPETyXIoK+a3aNR+Tbiv90Vp/WSf/ZHPya8VN8Ibf2kn9/vg48CMr5yWGzIEOASeTC48e+EPuvuW8Kn8I2J9W3FKfyI01E2SPgu8c/JpxT+5q7OkkD/AM4BJj06abnzpp4wzme7n4d8bEerTi390Vf+0k8v8SOH1ZcVN8If8yR/7I4BlJRZSSglJSUnNYgsC9HoFAsfI3PE+NYLHpSvFfZYgJSla0OAujgh0mlNRSwJDOD+TLilR7ETz6SUDptMalfGEfVlxTTBn/Nk+P8AtIXOpSafTXiMrs2PpNeTI5nE8NKHQYYslZ60w1L1AKiQHZywAADvAiPSKZh8kpCZU1MrpEoWtBJMqcFdJLJCgDLVnXo/WLEQd+TLitf5ITz6WT+/Dpvqy4pUDBkhyxK5IJGjjpC1NHMTWUsZGW6h2RUcJJdY8Pfn2QD04nKICkSSlAWlP2ZpLXKTJMkJ6QDoyhCEtVQAcEkPA3EvTHET8OrDTMnRukpQlISEFJSEZQ/5qEhA/wCEl3NRY/k04qw/kNd+lk1qTUGYd2psNXeuwvoZjZk5eGRIzT0B1oK5QUkOASMyusHYOH98dK5QSSCpjzsORy2O7Rwg3Iq9jyjYp9WHFwXGDIIqPtJP4TKbwRg/VVxWYtpmHUgKd1mZKNd1Msk17a7OTAB9y9UC34RhTuJh8Z0yFBPq24XNwvDcPh5ycsyWFhQcH+tWQXG4IPfHYANPEM+clCSpRYAOSdBEpil4pw1c+YErYYdNSkGsxWgVsgba/AAzfEcOccFYmYg9FKStWGls5VMCVBMxhcvbuaznR8NVkkyk2IQl+1g/veD1YYd2whvsogAHVPhhnQScII57INoABelhdLBXsidoXsidoABOlhdJBfsidoXsidoABDMjnSQZ7InaF7InaAAPpIXSQZ7InaF7InaAAPpIXSQZ7InaF7InaAALpIXSQb7InaF7InaAALpIXSQb7InaF7InaAAPPCzwZ7InaF7InaAAPPC6SDPZE7QvZE7QAB9JHekgv2RO0d9kTtAAH0kd6SC/Y07QvY07QACdJC6SC/Y07QvY07QAC9LGTx/AjMmrxMkZMVJmEylkMFpUkFSCSLFyH0LguHB23sado57CnSkAFZwLjIny3YpWk5ZiDQoULgjz3xcS5kU3EeCL6ROIkZRNDBYLhM1GymB6w0V3bEXcuTYs3LaACZMKHJEKAB8cMKFAA0iOZYUKADhTCaFCgA40Jo7CgA40LLHYUAHMsLLHYUAHGhNHYUAHGhNHYUAHGhNHYUAHGhNHYUACaE0KFAAssdyRyFAB3LCywoUACywssKFAAssLLChQAdaE0chQAdaOtHIUADhChQoAP//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMWFRUXGBoWFxgYFxoXHxgYGBcYGBgcHRcYHSggGh8lGxUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy8mICYtLy0vMC0vLSs1LSstLS0tLS0rLS0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQcDBAYIAgH/xABNEAABBAAEBAMEBQUMBwkAAAABAAIDEQQFEiEGMUFREyJhBzJxgUKRobHRI1KywdIUFRYzNWJyc4KS4fAIF1Vjk8LiJCU0Q0RFU2Tx/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EADERAAICAQMCAggGAwEAAAAAAAABAgMRBBIhMUETIgUUUWGBkaHRFTNCUnGxMpLwJP/aAAwDAQACEQMRAD8AvFERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBVF7WfaLjMvxbIcP4RY6IPOthcbLnDmHDsFbq86f6Qv8AKMf9Q39NyAwf67s07Yf/AIbv2k/125p2w/8Aw3ftKtkUcgv/ACXjbMJYI5XSQjWNVNh5b+r1uTcT5kGktfGTVhpg06h6W7dcJ7MMzEsZwzvfZ5merTzHyVk4WF1BvMdAdws11rgup7kKKJ1Rkl25Ofy72g49ziyYtjI/3F/86l5+Icy06mSxPHQiH9WpbGYZY082C+hH3KPweKEbtN6SO/L6lbRZ4iyW1aSlxyo5Ph3F+YCg6WJp9Yf16l+v4szAEEzQlhBOoQ2KH9pfeKljcCZWivz2bj5jmFBYjCBhGmQiN223mv4D8Fq2ewvjo9PL9GCUfxtj9iJI9J3B8Dp8nLKeMMeGNeZoqPaEftrc4dyQSsbIXEAE6AOm9HV1s9li4gyPS1xJ296mi7PyG191x2Vp4Zn8LSOe3b/ZqTcY5jo1slYAOrsPYJ+IkUcfaFmI3MsNf1P/AFqLxWKkcNJ2YzZrRsB8u/qd1FTRAjU87Dpzv5LkWn2NP4fQlucf7Ohd7Ssx3qaDbl+R5nt7628P7QseWBzpYwSa2iB37e9suUwmCbOLYA1zhW52sE9thdUpDJixrXskb7w0P7tIPlcOxB+5d24fJU9HRniJNj2hY/l4jBvX8SK/SWy3jTMSP46L/gD9pcLjbjOl3O/L2cAedqbwEwLSR2UZcHY6PTt42kzDx5mBkDHTRi+vgD9blKYniXMGf+fHXQ+CP2lXuOkAJIO6n+Gs78dpwrx+VjGpp/8AkYRv8S37lmu3x8yfBGzS6eLXlJTOuNMxiw7pmTxOc2iWmEcup2d0UXD7Qc3dGHiXD7714Vbf3ua/XHT5XC2uBBB9bBG/ooHHwjDkR9wXR2TT230PcciPRKrG+H1I26GiMlLHDJGf2pZo3m+EHt4I/aWL/WzmfMSQkd/BH7SO0NFgHei6+lqDx2URk62gNPpyPxHRT8WKeGd/DoNZikdDF7UszNkyQgAWfyI+Q97mtmD2i5uW6iW78g3D3Q7u82y5rLJY4Cx8mlwDwSCLvfrauWDMmOZbKAc0FuwAFjZRsm1yjPPSQjxtIrgPizG4jGNhxDmljopH0IwwhzDGBvZ285VmKuOH8S52aRNcANME2/fzQqx1OttxyzzNTFRsaSwF50/0hf5Rj/qG/puXotedP9IX+Uo/6hv6blYygq9ERRBtZZj5IJWyxO0vabB+z5hXTwTx3FiqZKRHN26O/on9SoxfTHkGxzG4VNtSsWC6m+Vb9x6pkAd8FA5vAALc3VVqu+C/aQ+MtixdvZsBJ1b0GruPVWTjp2uaHA2CLBB5hU01Sg8Ht6K2M35Tn5MzaDbPL0I5BfkuED2F8JpwN+HdNvuOywYrBEuLqsHstd5fHVH4fL7lqhKafJ7Tqi1wSvDmeSRP5HTfmHc/AbLu3Y+OaIubR2+YKrhmLBbroB30/wAQtCbOpsO8PYbYfo9CrLqtyyjBfpIy8/Rolc4houFVfpsuVxcwZdn4X/nuuimz6PExlzTTurex9FzeYkOFHdU0WODwzS23DKNcZiBG8jb+iPXmPmsozdssZmb73uSdN+jq9VC4hhGzbrtz+1fmRYpsOJYZGgxkgStO4c0ncGu3P5LXLlZPMnfOMkTU2J8SMXuW7j4dVijxe3Oui6HifJWNc7EQfxROqRjQPIOrm/zfTooIYDDvJMbz30u/FUqSaNDlJ4wuTVfIHHf7FtNzuLDyRO8J3WpNQLmmqNChex5Wsj8i2BY7n07KH4gyTEMYHlpIB5jfmnE+pTe5xg3g7vEyMnhbPC7W2vNtVHtR3UfmWFGKgMTtnt80Tuzu3wK5/g/NHMaWuJYw03lyPV3qpXFylrr+5VeE4vj4F9U1bTifcjsnkIPhSOrY3q3qvgt/MILpweO1/DuP1qKzWjIyZmxJ8/x5WsGMxJ3o2Esjue5CuzYnF9jYmjvY0R2/wUhlOfvjAj2LB7oJIqul9lzUeZOHSx8fxX147DuDR7df8VYqljBW71J57ltez3NRPmUWzgRBNdkEe9DyPNW8vP8A7FJLzTc/+nl/SiXoBSUVHhHhax5ubC86f6Qv8pR/1Df03L0WvPvt6y2aXMGuiikkDIGaixjnabe+r0jbkVxmUqZF+daPNfq4AiIgCn+HuKpsNTb1x9WHp8D0XPkrcyzK5sQ7TDGXHr2HxPRcxksqnOMk4dS3cl4khxABY6j9Jp5j5LbxjWSO8hNhVXheGsc2YCONxc3S4uYbABNbuHwOytWbIZSAIpQT1DvLZ+Iu1dB54Po9HrJSz4iw0a8UYFNI3tROeYKSj4YLm37oF16rosIxr2uheKcBWquTu/1qMOKcxxY73gaKk2+xtnZv4OPinMVgtIJ6EUT9azYO53Frdndb2FLtsbI2ZjWTMa4VtYB+9ReCyeOObVHdu95t2KHKhzHNVT6dDO1OP8HM53lc8ADns8p5PBtp+fQrnZY7POjzKv8AzLLm4jCGKgCW7WOTrtpo9iqGzOPwnOY/ZzXFrviDR+0LlU21g8657k2zqOFs9do8Mgu0ijtfl5b+lGlF5xgzC81Ya7dh5bdvkun9kkdwYqVzbDnxxg3udI1ub9RCtHKIYy0hzQ4dNTb5nlX2KyFSxku9Y30JtcruUzk/ERYB4rfEZyJa4Bw+R2Km25rG9uztTPzTQIVsHKsPIQDh4a6/k2/VyXKe0ThnCR4a44Y45C7yljQ0+vujlyXY1rODtOsbkoNdTkcflcUsdxMDzVudGd6/nRHf4kKDxeG0Na0SB+30b257EHcFRkWNmid71Oaa2dRCSYovJcSdR3NqWC3dHIlkoEEdCot0h2N7dQujwsoIIey9jRrcGueyxNypsguiPgobcHLK5Tw0zmmuANHl3X0xhcaaLK6fB5NGw3u53S2gn5A0B8VtAR8qt+nUWgcgKFmviFVKzCKo6SX6nglfYjhHszO3dcPLQ7U6LqvQSoj2ST6s3IBBaIJaI76otVq911Z7nj6tKNrSCrbiTNfBzcsOwkw8Xm7OD5aHzv7FZKrfi/LfGx0wA3EENfN0yqvz4bwR035iOC9qXCTdQx8TPKC04ljRVi93iu42P1rUx/BeFmYyXDamtkbqaQbA9CCrLwTHNjLJwCHN0uB32qt/uUFw5l7cLI7COd5HuMmHv8yvMwHu0712KjRNyjhnoOiMZNtZTK2d7O8ST5XxkepLT9VLXxXAGNYLDWPH8136iFbPEGHdHokbybYI9CvmPMmabv5FaFB5wyz1CqSyslI4jI54nDxYXtbY1Gr2vfl6K9Miw8LWMELA2EgadIq77+ve1E4vMYzd8lrYPO/DvQaBNlvQ+tI65GjT6FVZce/tO5lw7IxqHkB5kfYT+KyYlrG7GhJsaBFkclx8vFHjSBrmgxkVp3smuqkcBnrT41M3sFhPNocPXtus9lck98Op10zTXtNfHDS52xa7V9n/AOLSzfD6meKB5m7Prq3v8lPYbD/ulha471QePXv6rVlwT4Q+OUe8wgHo7b/Oy0VaiNqx3NSsj07nEjHnvVHbdSmR4m5GvuyDR+HZcZiMXQ90m+ddK2TKczLJNid+/orLFmOCE74vyl0xYg2W9NNj4X+BCp32q5O6PF+IPdmYH/2hbXfog/NWo86ZW2bbTTY/Nc3r8CuV9rjo34eBzDbo3OB/ouH7QH1rLVFp8nn6irdH3EhwDhizLMO0Ci90kzul2dIv5bfJddlr9g3r3/z0XKS6oMvwzPpCNjfnp1OW5kuPLmNI23p19F68K/Lg21af/wA6RYeBbXx6nuuL9o+YVNEwH3WWR/SP/SuiwWMBBLjR7en+bVccUYjxsZM4mqOhv9gAH4b/AHqFcMTM2ipa1GX2OS4syYF7ZhYa4Brqr3xvfpYr6lDxYc2A2wNh3+a7QSwiMiQF73OutVbDqCORUZjpwXBoYG17oA5A78+vxUbobZZXc126eKm5I24sthJtsrmkDfzXfxB/Utd8xHlLgBdBzRWr/FaWEGt1NBeR72kagO3JbTsPq1VTiOekgkfEcx8wqW0TVkexjc8g0XH0PP7l+skb6Anmaq/msMlih2+xYH4g8jfNUzimJTwdf7IcsbFm2ppJD4JdjzHni+kNjzV8KiPZA+80aP8A68v6USvdcR83q1FWtRCrriTHFmaPbRp0ENnoPPNQ+37FYqq7jb+UZD2gh/TmXJPgnoIKd8U/+4MuZ4kNFk8+Si3RtxUZgkJF06J45seN2uB9CPvUVPjC62E7AEi1hw0jmaXg2B9gCqrjiWUfUerRdbgyaweKldG5mIFyR2yQdyOo9HCnD4rDgctEpdosta0vNc9I/wAVuYnMg6Jsook2CfgPLfytc/wtxPMzGmCXwz40cjYy3Z383UOVmj9Susk8NPsY7HKmpZ69PiTWXYBpbZituqiS0E0RfX0Ki+L+H3QyF4jDInHy1uOW3wuuSs7hjCs/c9e+LPMV8PjQ2tffE+WnEYV0TauvL8RyWTTudb3N5Ri9fauw17mUM3EaXAjpv9S3sJmRt97Et6d/8lYnQXzaQRYcOxGxC6nAcOxFjXsBbMGamkHYmr3B2sgrdOayeo7MNSJjKcy0MG30Wl3KwTtqoKcbJHMzRI4G+X6qK5TgwNk8SNwAkDToJ5gkEUb+NrV4fzwSEwTUyZhLSBtqLTRLfWxyWNwe7ciicYyk10ftOZ4y4blwchcPNC47OA90k8ndj68iuYMovccleeKn/JgShr2O8pJFhzT0KqzjHhJ2HubDgugO5HMx369W+vTqtULMrkompRWWbEvELnRsaOjQD3PpfZYhifF0xv5OcG/WQucwGLaGm+fT6/wUvkjtc7D+b5j8v8aV8IJtF9c1Pj2nfcXzmmEC9NmvQjl9i57LcwI3AsHn6dluZ3jy+MHmRpBrlZBuvnS1OF8kMnjOu2tAGkcy52/yApb5yUDZuVSS7HRZdmxBo7k+6OhKxngPEC3+PGS/Y2HDSXGz6O3X1hn+GbEcQAqr5gg/nO9FYbJWyMDue17fXaxXarDzEw6u2UJKUFgrnD8EPBLTK0mtra6um3dc7xbwziTJ4bWkBwpr2+YOHUX9GuxV1s0vbqA3HP4rRxUAfY+z9aoeqnJYfQo9blYtsuncouDATQMbBE2QSX5y1pJ+tt8/1KGflOKMxe+CQAk7kUeWx79lc85a1+nrfIjl81IOG232bKiV8u0SyyhS284RUuCixIaTLG95PlBc3cDuHc+/XosuW5ZLPJo8N0YsjW73aHXv8qVj4vDbEbk891G4eKRrh5bbe4rmOvzUoZlzjBfGry9T49nORuw2as1Pa/Vh5vdB6Oi7/FXKq64bYW4/DAjfwMQTfPd0NX8lYqsawfP6z854CrriiNpzGXVf8RBVC/pzdFYqrLi9sgzKWSLzFmHhJj/Pbrmuv5w5jvy6rnHcaOW25Mgs6yxpaX3bBRJb8dwQelKIxOLjosjBDex6D4qUznGN0gCRr2lo3tos9XHt8FxeMxILj5xXKgR9au4iuD6hWrbubJluPaGOaD2cOxN1QHwvcrm83kka+LFRg/kHDVXQarF+h3HzX3C2SUExubYkZHRcAXFwO/PkK3+KmYXRQ4uTDySMkje3w5COR1NF/UTz9FW8SMt9kb63X37fyWJkfEMgYyOOtDgHNPPyv81/AXXyXQYHNGuc11uJr6WwF89u6rHIZxBG7Duka7wHeRxcBqgefL15h1ghSMOeBuvzNsbjzDusFifX2FS08LY7uE+/8mL2mZQ2DEmYEtbMNQo15+TgPU7H5lS/DmaAxYOyLDNBPctJYfuWjjc7biofCldHZLS0kg6T158jV/YufhxghdoL2kMO3mHU6vvK07t0Fguqp6Qm+h1OaYcYbMQWOaGyAOPLykgmj2sg18VocW8PxOk/dkcmh5ILhexcOZvoSK+1Qme5qHziXWPMxrSdQ+jYBWtiM61jRrFc/eCnjEk+xOFS43S5RNYXPgXSQSmiT5SeR7fB32FdLw8XEmM7hrSaO/b8VWzsI6a3NLXbhu7mj4bkrqOFM8MMkXjEAtuKQFwvlVnffopKqOcojJ5jKKx7UdzjMsilAZPDHIw92jb4GrCrrN+FJMHNI+EOfAQNLhuWjmQ7rt37KycNjY3yaGyNcKJbTgTy5UtvwInMNyU7sT1U4W7ZZMNdnhyUip8ZIZMOJWs2YGw0NtRaXO19ro18lCOzOTDjx4HOF7Gv0XN/FXTFl8NeaQMHa2gG+q15uBMMfM36Q3qiHD1HIq16pNYwaJauv/FvHwKzwnGmtlzwNf3LCWn40bC6bhHjnDveMO1sjL2ZrogHnpsEraxHsyhcHeHK5pvYc9IPrdqAj9kOJY8OjnYQHWC4Fp2+FqE/CmsFVlsGktx3cecNjl3NNOzl9yY0+MQ3cHcUox/D2IIDZiwP08wbDq2O9Dfr81K5LgNEYBNuFgnrXRZlFLKJy8FLcnnsQMmCe+ZznWSTsBewHTZfMmKg3AmYC3YnXuDyonvfRdBJgNWog0e4+9V5xfkrY5RKSPOPO4nTbm/ndSa+5RjHMsssVmX5SQxOesa11PLz3HmuvXah81lwnEkWxIcCByPM2OlfrXKeLG8aeYHLcgfVSwZnM7eQOaC2u9/EdOy1JR7mndHbyWPwlmpnzOElmmoJ/n5oe6s9Up7Lc4kxGZs10A3Dy0AO7ob+5XWozxng+b1zi7nt6BVnxXiizNXc98PFv6h8uysxVdxuz/vCR97tgg8vKxrmvdQ27uDvo/HrEclL+0sN/fCUtaG2GuIAq3Fu526k7rDLwTi2uAc2MbOJJkbTdDA92o3tTXA/NfPHkwfjHkXyaN/QLbxPtAxT96Y007cB5NujEZI1OIbsBQbQvekKdQkrZJe1ka/hfEjxrjA8AsEp1NpviEaTd7iiCSOQNlH8LYkeLqjrwjIH24D+KaHSUL3ABG47hbruOMSS41FpkMjpW6LEhlYGP1WSeQ6EUsMnGGIcWl+h1QOw9FvvMcA1zjR3eQ0C/QIUkfjslmh8HxW6PGaHxkkUWuNAk/R9QeSmH+z/ABzQS+NjAA91vlYPJH7zxvu2tw7kVp5pxXPiQ0TiN4bKZWjRVXQLPL9AgDbnsN1Jy+0jGuaQfCvS9jXiOnRsfXlYQaAbpFCjVDmgIGbI5m4kYVzQJSWtA1Ag6wHNOq6otcDfqvpuQTGTQ1odsTrabYQ0OJp/L6Dh8QQvrE8QSvxf7sIb4uoPNA0XAAWRfWr2W1huLp2RhlNcRY1v1OcQdexJd/vX7/DsgI9mSzEzgMswX4tEbaXaTXfcHl0BX27h7FDnh5NgT7p+jz+q1sYTiieMyObo/KyOkkBbYcXBwLTf0fM7b1WxBxlO0vOmMlweLIPl8R8j3VR7yu29G9kBEMyuU6vIRpYZDq28jXaSd+e+3yUiOE8Ry/JXTDp8VgNye43c+87oF9YziZz8RJMY2lskfgljifc2vdpBsubqvuSsv8MZb1GOMmo/eMjgHRe4Q0voV2GxKA2vZc4szOI9QJP0HK8MVjAV5/4Oe841jmuIcdRvrek2rdkzDo4718N11x8uT3vRdSlW5e8+eJmMexodu277dCCFA4THzYd7ImSPbA/aNxJIHcCuRB+itvHYq2kHl9yicJizGSPeaTuwnY19x9VbXZmGWetOtcHU4bPpGPtsluHUb6viCpWHjbEB27WPFXq3b8drK5PCCOQ+IBpIsEHoOa2NGqtPTmuSis5XQ5OiqxeaKydj/DAyTNw7oSwlpe12oEPG1jkCCL5LYzPPWRyRsaC0lzWP17Ea9mkdCLpcDjJTQcTTozrZ8vx5LZz/ABHiCKdr9i0Ajma5/KlxJIyvSQhLC6cnWOzVzZnxh1uB2AF7fLkvyfGRzNsta5rX6XEgGnDnbT6FfPDb4REZW14pFPPO/ULQyd2g4hrm6mvfq7b1vv8AJJxTTO7E84j0x8TPm/A8TjrY1jGcy6N9Ag8hoNhteirvPcO1kj2MfrA2vse19fipfiaR+lrBuwmrI5EEFp+9cw7U3ny6ED7VCCxzki4uvyyeTrfY02syaDf/AIeXn/SiV9Lz77E3H99jqJP/AGeSrN7a46XoJdl1Pn9U82MKsOO8LjRj3S4fBPxDHQRt1Nc0AOa+QkU49nD61Z6LieCquyVct0ep54xHC+Mke6STJnvc7qXR/ioTiTh2SJjTJljsPbqaS9h1Gvd0g2V6hXO4Xh8y4k4vF057SRBHzbE29nerzzJ6dEby8l8tZZLrj5L7FAfwAxzqIyyUNI/OYD9p2WX+AWO/2VJ1+kzt/SXp1EyQ9Yn7vkigst4blY2peHzIe+pg/wCZZMTw48+7w85vfzs/FXyijtWcnPGlnPHyRQkPDcgFO4ecf7bPxWrLwtiPo5CQPVzD/wAy9CourgktTNPPHyX2POUvB2KJ2yRw+DmftLUl4Fxp5ZRIP7TP2l6YRdySessfZf6r7HmM8BY7/ZUn95n7Sz4XgfGgi8oJ5i3OZW/U0ei9KouEfWZ+75L7HnvBcMYyEhzMmeHi6e17B6HmVrDhvNQ9zhl8/mOqi9ho/Ny9Gr8RcE4666Kwn9EeenZJmp55bN/fZ+K1JOFs1P8A7dN/eZ+K9IokfL0Jv0lqH1l9EeeMJkeas3/e2Unl7zPxW2zLs1a0huWzC/58f4q/EXU2jv4lqP3fRHn7HZPmkgA/eyUV/PZy+tZMvyrMmNcx2VzOaTYHiR7H61fqJl4wc/EdR+76IomHB5ow2zK5gO2uP8VttmzRjHXlU1c7D2WO+wO6utFHAfpLUP8AV9Eee8LisZiwXQZfJIGmnU9mzuxBNhfM/D+ZON/vXMPTWwD7CrjxXD5ixIxeEpr3ECePk2Vt7u9HjnfXqujTAl6R1Eur+iKa9lvD+NizHxsRhHwsEEjNTi07l0ZA2PoVcqIumOc3N7mEREIhERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREB//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRtAVAABXRUJQVlA4IMQVAACQUQCdASqrAKsAPlUijkUjoiEVmSZQOAVEoYf/GADJ2YHU9KfuHdeDJWT/Wrzc/Ux5rP269Z/0+7zZ6F/lw+0JkS0sbkL+T8H/N382kXXF/a5z17W/7bvx4BH5N/RP83+VHEzgJ/Pf7F/hfzj/qXx5dvfR/te/yw+Of+34elAX+df1n/b/cB9RX+t/2P9T/lP2790n7T/uv/D7hv80/pv+t/Yv/3f5X50/Y7+7vs4fsOgtqxXK4lZMfW4y/C+9+b1E1o9+F+1q6sw6JOWKrdVxnPVluUqOgLXAzGxk2wCSAN9HgFXc5i9OP/6mO/vbAKuunoc0BFE4v4BmRUBKMIFDK3t6wtZlfBAoCezQt+QOhyP3RYd7OnmhnIapBxmtRZaz/qzDvWjOEEsYHf2DLx/RDxeXLX8AItMe7PBTD6GLlf5aR3/5o7/MYMSSuqcw6GKgm8pKLDT3Rbouoic5cJv/T+MPenYc1a2JA5yNtGmFYOjSdrHRcvlnl0WD5IxW7y8eeNuIzwK+eLmZkDwqeZlAzfez9OhYUw6s9xPY19EoNe8TctJj53BgMBYlfnuFTeuVUhp19SnqarxkDtAZYFKKRGnkIRe9qh+kNX7mvqLKT5DXQX0TzUv7DEgq+FMJmzAYd722vCBBOvfEl8FFuBBQJO/t7JnAKaR4tqwGDCDz7I3g4NV1cDSyPQL+Lp015gZcSZYk3B62EZwkOBWA3YlERAttVoJ1MDT/y/bbMXbnOADCAtif3QTC0T7G7iLOndVP6YdKkUGonH7mPPwQvjAgWCQWXROQgpkrIpICjgf+hOpHqDWSVzzIFaXtadox+jXXnegra68KpFejqpw3nZLPldy0ztlCb1V0QT9OaLEuYF8FBtuAAP7/0VnS/+mWoNGTyTkxr5GP7uJ7Z+Xy4r6PO+GXaYBxFKUsTnO80jH2RaDBm8DHz3nQNlsBCmboiQSg0iIGf3BMqJnAGX8ccAU+9r/Ty1oyk0SPeS1mqALqGbIl2YvQ0uyZgEkWOf00UPpDBaVp6F8Wyd5RD0r6JmXRzx7YUYPIV+ZrD7UaG4c+2D5CSRo/GTIdyiFYCctni7B+HuZIqbskToileH9Mbf2pYDuj3JSGmpqo/zwXSw5KwzLjyvPVEmXzaWIYfkFcgM/xZnrPV/r6b9GhWZv1lrMohFkDSxTDVU68TI+3mPOIGPxJRH/wipQb0dVtzv2uj/Ly1c56HlkWOZMEAytwh8jZNf65xZkWB3VwuY68PArt2ZMadsvd8MLha1fz/u2BRddg91ieNZKTH+y2BFRnLSIc8+f/nMJXfMWFuSHNRJEmLnzj//pH/3w4EkdOClZyajc3kNPD3xu29L993ywnPvT0Z9bezu2EcbYYrNE8Ju3jWZ32HyA31icEg43t1BAq+pPPZNJqpxo2CzwiV9Zs/yNexd4n289aC/WHnzJ8qkHPuj10FK0ppkgd/9QAINuWWvYoDgaP8UXQtorJoOCsjuGoXKA5SVqfDl93TzmexXpCOsqpzn7u8O9l0M57ZtEtS0yM1N2x357N35l0RKi1OTu+d360hDuDatBTVYaal7JbuojuEWhUEAcZghTXFBv+v/fHtcCksgMcTBvep/4NX15BLJyrZR7f59o4K5xTYlHOhp+CI6Qfxech1I8e5/nAh/XeT/yFqbgh/sEldTP+DpYW4A1QEf834zoTgFKQU+ciz9Ro6atLk02nHRkyfwQNnWEDCey9FwRnCWsNYNqj8YvDPff7OZsYdP6f9BHHNH0EpaYbqz3aL8v0+r+u2paQLUI0n6i/LeTM8ffl0H34H7hCpV11GbOhZJuUr2V/H+ISv3hNCHMQtOlYKWCzdc1ejqNvhuKF51GjEVjml/yfi3s1d4zhZoYSbe3mkkf49qdXcMXxLKtR3KM47hIZIGHsQT42S/ZpymTLQN84HQrAmPBK+eS2facOs0/aRsLR9GFLpk0DrF7LPNnG8YCk/+S6HtdmUbitLyum2pDdlcYNA2AADV2eEvPt1onLva8VdTmKpefm78dQR203lhJ6oFctmLEarCoVOoI51QQOtNP/V3GqseXK2+Q2498GWftX/+PpGlO/ycA1NhOCVNxnyaAKx4DXCwMKOAF+t810oDrn2dpaRj0DBC3ur12EBQrN1stvmFuse/J9JEiL3ndJkv5dsb02YP+9sAnS/Qe7edzi0keg1YOFnnJdWRL2rLEpcJp0cKazXLpk5D7DZmnnHmqkEFZywZ9nSvTPhu2FR7jpY5T6Z3i9aLB2xmj20aCP9a4gnP6AGMrFSuHt7IP8gy+g8JIeio1arJ6ZzB50b6eS7y8U4KK3qCt/PCff7t5jhYvYorr/wYkegLD0tgL18hx9C/fFrork632uDhv/KlAsfo4pU62B96h1yv4WuOFq4spiFkHTwrjHEykKnfvt8qYg0DqV8/LvKSgFzLG3ON2doSk2i4fiYh2g31lTpQxtxOpsW/kSLReC2rCmjThQahkvQErMQseX+ytw8qGiJUZ7qS3YzHug2qFZ8rwNPENjoYT/6eKEYRDGbR+Zf2JUcCHYI8xiTxeHFqy7iF7x0GtbtkZmkloIHk0OzIXwM46Ots1RpS1lbE7kJL1rx38zojROtFEY2b5lOmEP13Bbvv60BhSHz0grBZbqLPEHLtxAJqK873Un/HMWScmWDHBmKvnzpouN645RXXv/8sGtA/8gWiQnXOw84b0yS/H08siQoCBZPa9TH9y9jRA4zvmT0qloH5LuVAkjVwvTLS3gDAloR+jTs6CWEmx4GiIkiaYleou24GzvbjFbZdxP18t72IX2j3qGI5Z44ZfrOEefsyysURXp2qbCF8ia5aXq+I+gF2pCMUikbXhUPp9RDv++mAsM7sxqxtgpUQEH+Ozset6fA2q8nwCWeTlJHaXE63Ola1jdnHyYSNJklC67hv8ipqYar/LuY0EVYjy/IRrl9FgixCgv0GSt6IKFSO3Kpjmjm8qG7OqFUecRelM30B9vZrnSIkSW6MyuUIH8hEWB2TS3kJ9MKN8fOgBwBPtHqm4vK6z5dyYux1kxtZa0LQpbNQkfR/OKsg8GaqMCJeRZXtn5L6LF2VMLnvqPwOrdUbJQb2QLnM7+lIAx5T8io0qviyeaSEdxQCh6ihHs1F/a8lntXCxynYP+7WnMelfheVAUUqgsASNBb+pgJPsFoAXYVeXZ0ISMZr/M+xVocWwf3Pr6eNdiyjfN23y+w9MYULmq39VYfvO/NbhIzGTfYUre3TqdXzNSM+V9wdDc18vQGs+BEaJdmNai/t0X6DCk27lWJUp/mlc5ot9hOJqNYp9yZkvJoL4C8CFLX5szJt1Px/O+FB7UHfjFpdPXcBHrqzk0OzYGhNRm9pnIENe+A4n3O1l9890/w5qFkevalMO2YPCYEg/YJsVoWbdkfyM22XOU+rKxwf+tKHhxG/lCP030uExwOgkoeTNA6U9Y18MMo4PzrZs0qg3ATrkFCRDOlhQsvRWXIDIIqKpnVg03HqdmICmwXOM4y2G6Ib4u9mQ59prWmYs4BXu0jQKUtSA7HHZJV5ZuhHhLbEjchXGXn5wdQU5xfrEUhGgCTvx8Ggi05zcrun+LRDqIksBSeG9GCcV3NMKw0R2Wf+L6UwaaBxQ0LMS0uYhxXfJd7fnpRSiogzUkChIkQITfOhn5kloUAd9PGoKLqNXE0B1hQmctexFEWCCE6amEXT48OZcjYzbgBnq5y8GiFiBKYM/1gbfyx1sWbPQpAz/SXeeD2D//df+rtGPFwS4d32hT5wdweMb/PGdlhcciBgedknZqVHEKuW8HkxX2pUnKhPNjELZkIb2mExfyT6YnUC95bi7BuJovL1l1zQLCcleJ4XXL/d0dvmrRYcDH7IsNt9b0tYiEo9onaL9uKeUzIFBhl/Dr9n3U90KaUwEgDnV63DWl6fU05iJ93uyB05wtzuudlrDhZItwvXIXnU+MNcb0mV9D2xyMChZFKxuh8Mx9PyK8tr2gnM+xe53N823FTZVYlgjHpsS/gQrvggdmn6IHnPSEomg57eraGLSG/pXQEDOmFZ7wbUUPxX+GZfdBUI5St3SynWZaJm7Sz2L/j8ZB4CQlM5feI58iLAzMR00TDLX2OOxnJLhN+Wgkv3IFWNKCYSlXSyv9oUismFP7lWRBlqaGiRRufJTFvHu1J0tMMwBJjuqWlDgAcqlQoQGM+8ozU7GkoQ2jyaY+gzNzhwj8nvvE17i/Nlg2Kf99AwTzzje/HQnJ3kNTwD99L0Hs1s91qpBxYkqIuDsjPdf/gA9fOksWZQPfjOrZ1GM/PSylqLEvxPEYohev4mJOd6DNQikawZ4pAZxS+e4714Y4fdIk7aMvpweSIp+GwmjLzUa9Ff3i1RC0BcOVMaXmigUj8n4oy7xHV1T1jnmTeUryP2CHQZ3nSlyZSzg5koBFwkloZ5Kp7zX3ap2SEg3LTq4m7Zc4Iei5f39SF0AuFbvhH89pd/H/f/fpxZEXG4KdPN/NNqXWxZ5W+D+9COPVZvyqtN0aRN441JfHiHnA/UR9fbtCc5X1Mv9I9QiZ8AWskib5ofeh6PCnKtSuIFPwQloIPWkngoatjJQofgWZtM88FQQt+Sx9GbwXogKpmUeABQbvJebJpg7B9gHH0yYDuZO7d/D4YLHE+bajV2j+0Suduo5CdfHKJRX4ph3mWw43qVvNOhOodQ74du4PPTyL4GpPCKepbXtklMftdzH9WJrazj81wY2zbNrDwtOEsYQ0hFyyssBb/5202FX5iT9sot6CUnC8BcqOHk1WTHcjX7Z3XdZorbdhZscb/TFUe69iwQ2ghCW6ZU0Bzm3+WrQsFHn3lzurGC+XkZqCeW050KJ6P52g+Hgn0xGyJSY8ZnC+UdScL80+GCHCN3BGof8ehINSuNPEwdSfHYpq8bJvlg+irpcW35mW+V3iN7rUUAgwLm7fMR5AiwPoz/l7d3MomW2ZDIuPIJe3YfSdsqp7vD84SMDiMQM9hsDKdlvbpoMbIlI0gtmXybKRsRhxWTGYaRfPew9Xpl/J7M/cnHC8V4Kcs5UM40tLsG9TII0QHxd5OY7QCov2tFYb9YWXt7x6e00BIetfin9quxAJm8nmhWz3EZfgykst5IYlBFBO1GsNZk1B+icUtRzZmSo5cuzRqWcYXZBPRFQ7OOrVIhSVQoQIRjeHNNMnMRxf0y7SwADwdq9p8lL+IysjJqx6Tfofux+JVaXtxr1qPlWJvPWnYv83NLHAewagp+Nmz8baRsja2AW8RFQ5RXClj6DRM/59xPlJczcefyqgLxfyJ7iN25upBiWxYC+529/vWbMXHPI8sbWsPFBADaBqorMXGWzN4PXqTz1cTpGYqEL0xs5viXYgGL212TEgrBCRl+FAx//PEZZQmeToD1H7odypeQxiz8FTU9fCvyACTzEVTq6smvI+MHww8z01h+Zp3hcesVIsRX606GjTnFPb0oCcsxgThsIP7tYgskMFTPX4OMqD6mu77WWuQRVjXp289sVF2dXRW9txaUMpXqdYxXtDB2+SeTEvbxlhNKeQ8yFQIvph5LdAHCkTL3l4XBKzRbQviyW0nZGkNVw0U5IYNvtznDtv94rN5a07XLEnssK6Fyuhx1dTaM5UB+PhqEVETTUUqdHfxFtPnv5+s6kHhpSXecDdAEfVMdY6MLcpJpg+cTRRMCS4Xz8eeaCOaWHiTosLVqwS7Y+9v6orgmpWc3Ifua3m7GTKY65rMi5ypzJuC+LIntz+IBjXi5Z3CUk9cMm/X2Tw/7dSJ8P4mChY75Dou25yYHL9vBU/td+k8PHSTA+Uy/oRKf2d/1F87n6L61+dNt7tCY878a/wfGgE/oIicoTHhui7K/bnTI+wdwvvXY3MXS5kmJho3jYak3JiI/xmGYS17u3whCpfwbU5RIfOJxwjwtfUNZMyVPvneMc8oY3vno7X1OusEAMSUVE7V7nVXw3Gcyeiqajsheyw56aGlsE4TJ+0NEOKiCPP8e71BM972A8leQJk81eSQ7IIcp4bNVqYWSpActoZiYEVjECKYS1uEDjmoS0iqGwu18nnv/qfTKMTLxP7jufh2oHB44Hee70hmilmHhAHCCz3njN1p70kbSNYh9E1x5hHpmsOEv2H7tdJM2jyMTNkjdSRAhQF9cEZW/x7EDTjWncII3KCDj9EfSFHuIcyzf3XWl2NTaIbuiWuCb3BIIAeSpEb59yc6v99KnKF2KR3/uBAYQbfJM8bwy8CIqjy+oROfm3KqvPxtFvc0WUYjBSVk6zYkq3+nrfm0K/Waj2goYqU32mfAobKqff+DMbBcLc4iuGutmKD8ZO+MdAyerMYGvneEdLP/kk+NHtnca57xTkfYUHxexx8JAqX4sdUWdyXCgQ21TiRLQMpYF0tDPtvyNaeOTGJI1MSvHQPGWBEkYapfLTsTuZ8S3gcZd6E/t/RAV6lfm32MSArr9cjuObTZl+BCdo65siUTVVieEQT8OqVdtCIedNbg1eMI9SAH6kSjH8JxTc+9YzyB1NpxcvwsUNIAANFN8ctLstKfyxJ7MgzrJkqU4MEe4nHs0nHeNsDcalpEgAbRqgqDdrdrgwcJbqpWruy/vObdTwpSfek0Vt/Aljf7S8uCnnXICf6Te9sKbQByhGhU1ONM0GPS+v1voOVNkcnD/ot9Zn4GbpSZAjz9mzvCOq29Teqh8wSXk/1Q8aOwQJQnOvwFUQxNu/sKkn7shpfEppqZGWSf2VxGxgV1N7rfwcZmQEbGDTC7P9vYx2vYOdRh0mF6Mv1SalfDxmhjvJYKvXVu3uQd/u6w5IyFxlC1gX6joIdXbDO+A/+Uo9mryE0E9B6EJX/3iYSPf5ZwzVkBp5HhPhyeBuKPVN4JqT63roSNkdBWZRMjI9jGXnk2oGPtPEbh03b77c3k18Tfqn1NwsObBagRkk90fOYt9xB2wcU8NSFOjx9+KZNVrwuBi167WbiKUQzEyF+ZggylrZYiG1YJdfJ8GXZ5nxrLGnmgD6bMx+WrxODCa1y3YJrf3t/EDgxAxKGLOvqI56tQyflAH7yyPK12HLvqedwy9gNKz1jEaEW2uQC+h1T97c4u+YMKIZJfadVu37frq6e+pOlo3nPTiTEVUjeBi6sPYpNyhLZG1UPoQskgbeVGQ9Av2W+F9aYJsj80ALYzXS9p1b+3/b+vzN7HzCJd9tUBMEEAC7HpMN3jhh6TgAR8dMcrCce3sHFqk3ciHBrCzyqVrK9FkySMMscyP5/C7uP8p+0L1JussbT/X5lphAs7TcfNehNXZA1jnnitTMYFsdAnHTAdFZTVNbT0fRKdtJLiwgJzwsu59xGft99Ki11pmgNM5yDMXRAGAv031pdT3mAAAAAAABosSI+U91pki6VcAGrSrg7UXZt7h6GdTo+F4b1YuWN3TsgAAAA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMWFhUXGBcYGBgXFxcXGBUVFxgXFxgYFhcYHiggGB8lHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHyYtLS0tLystLSsvLSstLjctLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS8tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAABAUGBwIDCAH/xABOEAACAQIDBAUECwwJBQEAAAABAgMAEQQSIQUGMVETIkFhcTKBkbIHFBYjQlJzk6Gx0QgkMzRTVGJydJKzwRU1VYKUotLh8ENEY+Lxwv/EABsBAAIDAQEBAAAAAAAAAAAAAAACAQMEBQYH/8QAMhEAAgIBBAECAwYFBQAAAAAAAAECEQMEEiExQRNRInGRBTJCgaGxFDNSYdEVIyTB4f/aAAwDAQACEQMRAD8AvGiiigCqPZgxjRSh0tmEMdr3trI44eeqt91U545PQftqxfZ4NvmU/itVWbQjiaMNA651Nit2zMmUWZwwAzZgwOTTh3E2RSoZDgN45Txy+g/bWxNuSd3muP500hYtbPwZ+XkjyTx1GluZv3VvhEJNhLz42udbafSaTfEfYx2TbUnM/vN9tav6dmUEuNL20duHPjSLCKGzai4W63IFzddNe4t6KcjhIrORMDa5A52uOfMHzEGmpEKl2hbHtMm2puewu1/rpRDjSb2JuND1m0+moxDLB0jLJdSF0IPIXy91xoO+1P0GFsykSqy2szdW/E2Ydbt4276hqhkovoc0xDfGb99vtpLtPbBiA1dieA6RxoOJ499GzcVE6Bi2W5IAYgG41B8LBvPbnWe19hrKoKygMvgcwLHkbDQC1+etqFVktJeDDA7cV9GaRD3yOR6b08Kl/hyfON9tQaaDo7da5vYqQAVNgbGxPgbcqf8AZuMjUACXrFQcht5XEgcBrcAC/G96HH2IVeUPgT9OT5x/trYkQ+PJ84/20YRUfhIO36Dbh9VbZIQtrG9/N9FV8lyjB+DYmHT8pL841bBhV/KTfOtXscSkDUjS5uR2EggacdB6a3w4cEA3tf67gcOXnosPTgaBhB+Vm+dashgB+Vn+delkWF/SHnrZ0drVHI2zH7CMbLX8tP8APNWnH4eCFC8uJxCr8s5JPJVGrHuFZbY2skd0jKvJcKe1Y2IY++EH9HyRrqOF71BdqK7EyySF2vl1FsoIvYC9l4cB3E8aZJ+SHHG+kOGL2yCfennC/pzPm84BsPDWk42vN+Uk+dk/1Ukg2YXCsrlRrmv22PBQB1u830104Xk2x9z2mszOUj43y2LCynq663zEX7u2hsFjguxv2bNiZ3yRNKT2npZLKObHNpU3w+64sM+JxGa2uWVwL9wJNPWydkJCmWMAL9JPMntNL+gpeQccfsR8boxn/usV881Jpt0V/OMT861ShoRWt1I76hthHHD2Imd0U/OMT86ayXcyM/8AcYn501J8h5Uim2rCmjSLfkDc/RS7pFnpY/YZTuTH+c4r53/atT7hxfnOJ+c/2p1feWAfCJ8FP87Umk3ph7Fc+gfzqfiI2YkNp3Ei/OMT84PsrA+x9hzxmxB/vj/TS471x/Eb0isfdXH8RvSKWshP/HI7vTuZDh8LJMkkxZctgzAg3YDUAd9WxuR/V+D/AGeH1FqtN7t4Y5cHLGEYEhbXtbRlP8qsvcj+r8H+zw+otWQUq5MmfZu+Doe6KKKcpCig0UAUx7Ph6w+RT+KapaN7a1cvs/HroP8Awr/FaqXBq2HRKFbxKwzDQ/Ctp561mI8w3iNfSNa8hkINx/8AaUONMy8D9B5VLRYmzUrsvxh/mH2ilUGNPIN+qdf3TWpHrMop4gUtD2vJoxqZ3zIddLqdDp40+7LchADpxppOH00bTk3WH08KyjLrwv8A3esP3Tr6KG7VAoLwOMm0l6QxuOB0I46gcR20/wCFksAL3t286hTgO+b4Xbbt7PJOvop5fGAxMEbrBdBqGuO7j2VDS8EVNLkfcbg45Rduqw4MOI8eYpixOFaFh0g0+C/wT5+w9xrbsDaDSKQ+unbx5EGl2GmF2jR78QUcXzai/HQ6VFuJMUmuzVgsUVNwalezdohxZuNRSXBC/vfvZ45WuUPHgRcpw7xQMS0P4VWT9Lih8HGnpsaOJENSgWEoFRvevedsMyRxKrFgSSTw1sBYeevcBtF5EIjIP6XED7aZMfuqrkyS4hyx4k2AHgOwUJK+SXPjgWbA3qlncxEKt9cy3uLeJ8fRRtjeZxePDyNl4NJe5buj5D9IebnUNm2dGkhysWCm176MfN2a+elMRLnKgLNyGv8A8pnFXaFT9xQsvm7fPz8dTrSzZuEkmfLEpZu7s7yeyl+yt1yetO9h8RTcnxbgPNepzsPEQpaJEVEtoV+MPj31JPY31UkpIuizVu9ulHFZ57SScQPgKfA+UfHTup33i3niwidbruR1UB1PeT8EVHN7d90hDRYcFpfJL2BWM9tr+Uw5cPqqEbC2Hise5aMdW5zyvfLm0JF+LNrwpVF+TTGEe5Er2H7JshxBE8a9F8VAQyd4JPW+inTeD2Wo0umFiZ3GmaQZU4aHKDmbw08aZIPY7xMTdLmwrFQ34TMygcb2K6HTj2U1bobMgmbpcXIZHckhcx6wB8piPKvbnUSaSsbbByHvYvsjYhm99VG5gDKbdxvVl4DGiRFkQ6MLj7DVVb47NwjwF8EqCSI3ITMGKjyhzJ7fNW72MN6DkaKRswBXJc8M175ieZtbvNVOXFluSWOVJRp/uWNvUZGwsghBz6aLxK3GYDzXqqjiipswIPfpVvievGkB4gHxqVkSM/p2VGMZetcvXBFmIPK/8qtzq/FHoFaMTtSGIe+Sxp+s6r9Zpll9kK8S8sqrCRvYLHBOR3QzEfvZbfTTjFsjGNouFk8WKIP8zX+ipVi9/tnpxxSN+pd/VFNieylgWkCAvY367LlUaX1ub9luFPeTxEqccfmQxbf2Di4sO8koiVBlFg7O5uQPigD0mro3I/q/B/s8PqLVN7z7/YfEwth4wSXtY62GUhtT5quTcj+r8H+zw+otC3fiM+Xbfwj3RRRUlQUUUUAUh90E3vqfIr/FaqYFXL90H+Gj+QH8VqpkVbj6JRuWlEEluOoPEUkWtymnY5niDkPNTwPP/eiPEis42BGVvJP0HmKwwODU4iOKUsEZ1Uslr5WIGYX00FzbuqOCLaFKyjnW5ZKUnda21f6OMlh0/RiS2vRnrK9uFyhBtzNaMHIIdoLGhJRMSsZz5WLKsoU30A1A4d9LQ28U4foGVulDFurksAR5XXzE6jq6C3aaUy4XCEtkaYC8eUPlcAX98za3GnC3KkuKgYokwChDGCxLWPSDiAD2kFbCvN34hicRFAHyGRgoJFwCeFwDS0MpC+AQRm46W3SNfLZveutktmsb+R/m7qTYGWHppZGL8bxhdfjDrra4+D2fG14VnsxBIZOuoyozam1yvYO+hYw/Fb+I+qo6GtPsfJ9oYbiGcxZrG4BIBXS4HDr/AMqVYTEQBBIXkW4jFjZlsR1gfC5sf0RSHYW7a4jpVzOrrDI8YNiGZACEJ8rXXt7K92VslpcPimlYhYY1ZQtruS4UAG1wB29U8RrScDVxwxk25iESZ+hkYKXchR1QF6uUjLp8a9NeJ2g7CxYsP0tac4dlRyLndmsr5XylfI6NmVu2xDgKe5xoKYMThZYgGkUhSStwQRmU2IuDzuPNV8KZTO1wKIpowbshPgxt5xRu7NlxJK6DK3ouK2zYaP2gMQM3Se2TEdeqU6IPoLaG559laNixFQXPwhYeHEn6vRRN/CyMfMkTJ9sd9eRbRbiDqdL1GiSTThhZNP8An86ohG2dTSYFkyW+kKotlRyyomYpmYZmvwW/WOvbx89XDsnBxQRLHCAqAaW7eZPMnnVQYd2W7ZMx5XAuLcL06Q77PEhVcO1x8e7W4cMvHtpppvos11rJ93gkHsmb3xRQS4UAvLIhU20EYYaFj2nttTPunjIY8NC2RGcdXNcAsVuNCeNQTb0k2IkMzRkZz2DttbhxGgFOW5uPaEmGePMh6y8w2gPmNUzg6M2O1PmLr5FhzYqARsyRxgkHM62II4nUeeqsM8cM7JFfKbag87Hsqc7TxXTxsqLkTKQB3kW1qtF2TMoDZD4aX8/KkhG0xs0mmqRN8X7K06AJHFGbC2ZsxJ8wIpkxfsk7Qf8A6oT9RAPrvSM7CzdZmAJtcAX19IrYuxYx2sfQP5VthHGoowTnkbfI2YveDFy+XiJW/vtb0A2pua5Oup76k3tKJewec3pXBs5mHvcbE34LGQLc83CneWERVinIiK4djwU+g1vhwDkjq6eapjFu3iG+AF/WcfULmnPDblTNbNIB+qhP0m1VS1eJeS6OjyPwRGHBqrXUc+PKuotyf6vwn7PF6i1R+0t1DBA8hLnLbjlA1IHAa9tXjuV/V+E/Z4vUWq1lWTlFefE8cqY9UUUVJSFFFFAFGfdCH36P5AfxWqmVNXL90L+Gj+QH8VqpdRrVsOgRvBrLNWtaGFOOb0fvFOuxgHmiVux1ynlqNKZYk7b047PxPRyK+UNlINiSNRrxFKyUTaxbH7MxZ4zpgFY6azRzLDL58sH01FdobLOSTEgurhFxJDZVuk0wQZVBzge+IQ3AgnhpS/D7wHJhVCXbCyySxhm0bMysqlhqbEN45qjvtyYgxiR1S2XozIxQKDfKVJsRcXsaWwUGyVYjZkHtjGYGFDnETGJ3bMxePo5nHIXQSjwA7a92Ls+OPGYWXpUVzJhpFiAAuk1yMoHAqvRsb2vnNuGsQxmMleRpHcmQ3zNwJuLHUW7NK9/pKW8bBrPGFCOB1gF0UX7hoPAcqkHEkOG2NEI1l9sqbwdMxGUKHJ1w3lZ+k7PJ492tSL+jYhwkKo2KmiVmIYCFFvEzEDQM3w+FtbaVWYuTetiLUMaMGy0tlbXXCYmIsot7xmIdXVkklEburroVIJ4cjWv+kniXH4ZY+spEYsC5ObGxwiyixY2S4HbcVX0WKURujLmLgDMWbMtiCLa2Oo5U67R3gaebEMqAHEmIE5ipQx5CCLWsc65ib9tLSCUJeB2hgZ5VDMTG/ttCmboznw0YkYFo81rgobEXBUjvpG27KOq2kzqQJHkEgZ47QSzSpJEdVYmMqrag2vc1HJsXOdGnlaxPF2NidGI17QBc9tqySRkCMGIynQg8NCD9dMg2yrkecRh4RgVSNy6e2VY3BUhjh1zpcgXAa4DWFxWnH4qMyMY1KobZRe+UWHbbXWmeTajZcma6Zs1hYDNa1+HG2lJ/bpvTbLFUlHokGHtxrftR0VQ40a4GnwvNWnB7Pc2Zhl5GtO0jltoDl7fhVQq3cM1xnOC3IVYTaJI1+yl6TX4f/R2/R9VRVcX1lubgsM3hT3KpjbjdTw+w1cdbSfaCn8M+x1WUDtrRioc1iiktzvYD7fCsA4ca/wDPGtuHdkPMfV9tB12lNU+iQ4SA9Dm4G308PrpuGMN8rx9b4w8gjn3eFbZNo+8hBqc9zblb7fqrVHiL8arxQqyvT4Ixv5/obDgY5CAvVYkAWtYk/VTxhdxr/hGX/M32CoxJIM4APfVn7GxHSQo3Ma+I0P1VRq90EmmZtVpcSe+KSEGE3UiTt9Cqv02vTlHsiIDyb/rEt9ZtSwCi1c1yvsy1XRqTDqvAAeAFZ2rw3opgGXfNfvOXwX11qwdyx94YT5CL1Fqv98vxOXwX11qwNzPxDCfIReotbdL91nI1/wDMXyHmiiitJhCiiigCivuhvw0fyA/itVLa1dX3Qp9/j+QH8VqpbNVsOgPVY1uBrdjNmyRSGNwuZSqmzowu4DLYg2OhHhWC4dtOGuYeUPg8e2nsZHqmsw1Jw1ZhqgYUK1b3TOLjRu3v76Rhq2xyWNxSsZM3YGFQ15FzrYi17ce2/ZS0x4axHQt2EWbUHXTMTwsR6O3iW+e56yG3Mcu+sBI/P6BUDcMd3kwwDZcM2YqVBJuA2UBWAzaa3Pb576YQz4VLXwzk2XNdswzDVrajQ8PrvTYZpP8AgFeiSTtPfw4W8KKJ4H/Y+PwCRt02FMjGW4Ui+WIdCR74ToLrKMvbm1tSiPeLBZQJMDmbKqs1hxCInUJPVF1cgdlxyqOJI/aA3iv2VmkxPGK3nb+VRQUhVvBi4HlzYeIRxlVsoyix1vezG57L6XtwpBi1BUDs0+sUpkdbW6Ox59bT6KSu40vqLi45i40oQ7qhI2zmtf4PPW3prWmHF9WGnpqTJNCQQYiAe+3GmvG4GMC6u1+3NlP0r9lTGXuVSxJdCqLbDqoXSw4WOtqzw84mbIdA1x1tNbEjgD29nbwppjwTNwtbxt9dLMFg2Vg11FiONzc30Gg4UOMVyh1KT4fQjxMLKQjqAb2NtNQSLePD01IExoNkdLi3EHXxrRtzKQJIh29YZTa9rBge/UejlTfhFlI6QLcX4X1NuQNQ/ijyEW8cuB2ia3DhS2HEaUyNiGABFrG+h4i3h41sXEs3VtYdvfTJ2j0mDWRcVQ7RTjNew14c+/66WRTCmWOQBgSdNQb94reWB1RgfA1KNkMiXB5jcR98W/RFWTuTjM0BHara+cA3qvMZOsgitGbxrlutszkm5LHxJsO+n3djbSwsVkEiqwHlBSAR23FUZ474NFLjKUJL+9osgTUGWmxdoRnXpF9IrL24nx1/eFcpwML47F5krzPSE4xPjr+8K9XFL8ZfSKlRIEu97fekv931hVhbm/iGE+Qi9QVWm9EoOFk1B8n1hVl7mfiGE+Qi9QVt033Tka/+YvkPNFFFaDCFFFFAFFfdDfho/kB/FaqUtV1fdD/ho/kB/Faqd2V+Hi+UT1hTJgOr7ChuAMUhBIF+qLAkAk3YaAEnzUmxmzI0Qss6udLKoF+y4OvZc8OVdABR3V7YcqjcZv4j+xzcDXueuj8o5CtOMhDIyiyllIuLXGmpF+QvUSyqKtlkM7nJRS7OeBJWQlq4tj7tYTDqr4vIVbTrjqkeJ4GmDb+wUw+IaTCN73JHJnS+ZRHlJzK3K+W3mrLi10Zy218jfkwShHcV/HirG96zeYcQRb6q7AxUUSIzmNLKCfJHZ5qice00JJyMBxObolUXa/FowBxC8eAHea0SzRi6YkMc5ptLhHNa4kcxWxcSvMemulo8YgJ0jOhFulw+pIUC2lzbiP1jxrTJtFFUHJmBIIKtC/BQLHIhtfjr2k1DzxStkxx5JOo1fzX+TnRMWvMemt6YleYro/AszgSLAzKSdG6EdraaqDYXA/ujvul3+w6jZmLbolU9A58lbqbcwKaOVS6InuhxL90c9YyfqeikOHfrL+sPrpywTszAKpYnSwF9TpTs+y5wFPRjW+l16pBy6/Rrw1q+XpwdSklZhlrq4cf1NSTit6Yhe6nTZexJbdZcp5EqbjXke21qk+ycO0YLMoJ10IUj/as0suBfjX1Hhr0++PzIM+JQAk5fPakZ2zENSlha9+rzGgtVtNj4whBiQMR1eqvHv0pk21tCN8FiVMaK3RNYhVHo0vUwcMibi7osjroylSK0xm1YXhYKAGAHEAE6jUUm2fj0WMZmUE8gSRrxa1WlhMLGJAejQ628hbfVUmjwK6AxrmJK26GK2YZrgdXjqLj9Ed9UR1EWujbKE0+WUZiMtwwIIbtB8KzicVe67PXNrGtrOPwUYynTXyfg/wD68KatubewmEkWIp0kmhIWKLS68PJ46hvPVi1CXg14NS8SSqyomcHlSSfKOBt4V0TsbCRYiJZljGVr9V4I1bi2mg7wP7o5mm7bEeHMLWSEWljQgxoGzCZAQLcxr3g1MtTxdD5NfuXMSlMHMhHEi3G9qUS4rLwYMv1eI7PEVeSbAZVLN0IsSRaFD1ewEZaZ9rbRhQSLliZuy0SWClRoeqNb3PnrHH7STxb3Gvz7NuLWyrbH6p/+FX7O21l6pOnI6+cU7f0unNP8tO2x9sLDIuaON0Y2N0U27hcaVYgbCsoZYY7EMfwS6ZRrfTw9NJ/HY8naplOrzzlUq/P/ACVSu1UI+B9Br32+vJfQPsqbTbLEjEukenVW0a63BIOi2P8AwUy79xQRbPkyRrm6hzBALDOAetbT/esn+oxeWMFB8ujJky7I7nIjeOxIZCOfhV77mfiGE+Qi9QVyxs/GkyKL8b/UTXU+5n4hhPkIvUFduEdqo5+ebnKx5ooopygKKKKAKK+6G/DJ8gP4rVTey/w0XyiesKuP7ob8PH8gP4rVTezPw0X66esKCH0dCRP1z4VvEgPA0TbIcxCRHAL2VdPhMbAHXnb00bK2C63BkzWsSdbHMCbjlpl9NKlZzlFpHoJPCmvbswSNiRmydYXHLjbvy5qkI2flJGfgL3y6aXJ4nu+kUl2vu48sZCSC5Unybjh48eHpoy4lODiXYJyxzUqI9NvJGmFDyoJIhqBoc3MC/Iemkk+EUYbFTLmHTKWAY+StuAHZqSfRTlhNzoMPFGpcyMQSQWbIXHE5CbDXsrVt0AYWW5IJQkCxsfA8K5+DEsWSjp6jNLLBJdeS2NowdLG0ebLmFr8bea4pnwO7rRElZl1FjmizC3gXpxGLqHYTe5IcXiY3Zm99CqC2pJXOcoJsACco1HDurZPHG02LjzyUXGL4HDaWEMbNYiSQlCQAEVFLC5AJI+CNBal+L2Is4TIwQKtiuX4WlycrAX4VCd49vRHGOJJXhyZQbanqrm4AMrAG99eNu+lOzN9oYo8q4hZXkcsCwtlXvC3Oa1haw7NOcrDGXw+A/iJxe5d/InWEKRQlEZXMam4vbXXjqba3qNb+bVMuzcYIoyR0L52bqhNNVHazeAtrxpq2XtVY86swKu12YqWygtcqF0BF25dvbTPtDeArsvGYeQZmyyqrgBQUPkm3G/8AtTuEoNRKHkUpbrIlutu7NKjSRo+bMoisBkchhnLMeQ17OHbUibOMwj6Z5OqkYeMWYkXbNZeBINv1TxqKbvbxYiGMRI91YHKlrm56pt2ahT20/wCB33fpEYkXYt1esD5JCte9lA7BbSny4/UlckmVqGFpWOeLjbpsl5NFKrZbe/KAwz2tcCx7ta0MJpMVHGHZQ2YHKhJVwSFDdhB6pPDjTfhN8sQXkLklScyWVT1yb5eI4i2n0ikeJ3txjZAmWNukZ5DaxlkAyhZLcAFFrUiwRXG1A44X4/QzmxUxmRWeXyiHiAsVKkaZhzvx7KQ7z4hoy8dnFyY+sRqFbKTp3r31i+2JpcR08RPSu2Uxrc3IAUZbDWwXjTPtqd2Clo2W7ZgWDi9zqqlvg3B7/RV0UorhEenFPgtzB4T3xFUg3YAeN+dTqTLmK3t1ncXBHWcTA6+DoTytVT7N2kVx2FYxqkfSRs75iQq8TmINgdKn2B3kgOjSoiZICuZiWXU9KrFuJ048iK5uLE4JnUy5VNqh2I96MZfM9261reT0ZK+j1RUA30jhw2JE5F+kQrJl8tDZQpJXUXsNakO8G92HWJlE6B5YJ5EYMAwlESIg7sxMlu9apLDYt1zdbOGN2DEm7akEm/M1Z6MpKxI51CVM6C3a2rCmBiZ2UXDaZixvmN7319NRfbGCwt0ZYYlIlhsVRRYmaPXTgbVUSY6WNmkVzmJzG3An9XhVoLOZMLE40ZzAQCb2LSx27OyqtRiyR27XwTjyQkpWuSz8RKoWw4dvhVSb1uizTAsVW19BfXkKsDCbTLlldAF4E307/NUS3t2Wr5pIWzFdCb31tXMe94051w/HH0LtFNSiyv8A+lMoVAy5CcxJAuR2W5Hwq1NxdpI+HHWHVPpHf9FVNitiyIczsDwJ5nut/wA4V5idvHDkIoyhlvp6L1ZLEp08fLLsUnTjk4R0bh54nHUZTzAPCof7MUaf0TiCoGnR2+dSqj2RvI6nMZWQ8O0A8teFK97tuYl8K6Oc0b5dedmBB5HUVoi3vjGcV2VT08XByUiEbFkPTIPH1TXXO5n4hhPkIvUFci7C/Dp5/VNddbm/iGF+Qi9QV1jm2PNFFFABRRRQBRP3Qv4eP9nH8RqpaCQqwYcQQR4g3q6Puhz98R/s4/itVQ7CQNiYFYAgyxgg6gguAQRQBOPdDtLJkE8JU2BsptYta4Nvg6k8gL1rG8O0A7ATRaaE26h6mbrNwAsANeJFuddBnczZ35jhvmY/srz3GbO/McN8zH9lC4FcIvwUDhtr7SUgriIbgG1yTYC2ndqcvcePG9GI3k2ogN5EICs5sptcKrEA8ODX8zVfx3K2b+YYX5mP7K89xOzfzDC/Mx/ZU2yPTh7HPmH2vtFXyZ4blVe7dokPZfiR1ie5DSXa23caYXzTQyIAoITWwbge6+npro33E7N/MML8zH9lRj2Td1MDFsvFyRYPDo6x3VliRWU5lGhAuKTbG7odcKim39lTaJFs0fmTX66jx3inLtISCzNmNxe7U016UPKmfILgcsTt+eS+dgxLM1yLm7MWIvyuSbd5pO+0HJzaA9wt/Oklq9yGgBwj2zIGLdW546aG2tyBpfvrZNvDM6srEWYWOnYeVNVqBU22RtXsKRjn0sbW4d1bE2m4KtpdeGn1869jUchSzDxp2qvorXHTSl5KJ5Ix8CV9tTEkhst9epdRwtwHhWM+1pXQIxBAOYaa35341IcNhojxjT90U6YbZ8B4wx/uirVoZv8AEZZ/aGOHcWQnD7UkRg6kBgSQbXsTx4+Nbsbt7ETKElld1BBAZiQCNBYE6VYeH2Thjxgi/cFG19j4ZYHKwRg2GoQfGFTLQZIxcty4M8ftjFLIobHbdeCEx73zqLAR25ZWI9at3u4xPxYfOhP866Z9wmzPzDDfNJ9lee4TZn5hhvmk+yuVsj7HdWSXucsba3jmxLK0mQFQFGVbCwJPPvpGNov3eiutPcFsz8ww3zS/ZR7gtmfmGG+aX7KdcKkK3fLOSXxznQ2p8i33xSwrCOjyLlt1TfqkMNb91dNe4LZn5hhvml+yop7KW6GAh2XipYcHBHIqpldY1DLeRAbEcNCahpS4YJ10VCnsoY0KVAhsRbyD/qptwu+2KjuFKWOpGU2N/P3UwZK96OmX2djSpRVBHK49Mf332xJ4iL9z7TTHPjndy7nMx50JBftA8f8Aatw2cxBK2e2pym5A55eP0U8NBGH3UkEtRJ9szXbUlrWQjvX/AHrWdrSdG0Vxka3V7AQb9XlwpN0dYstD0iirpE+tJ8WLt3x98R+f1TXXO534jhfkIvUFckbsi+Kj8W9Vq653TFsFhh/4Y/VFVijtRRRQAUUUUAUN90OfvmP9nH8V6qXd78aw/wAtF661a/3Qx++o/wBmX+LJVU7tj77w3y0XrrQB1fv5jpYcL0kBIk6WIC3wruBl8/Dz1FsDtqfESYfLLPkkfFN70YwwRZUCZs4tlVWsba1YG0tnpOqrJeyukgsbdaNgy+a4FNo3QwllHRaIXZes+hkbM3A8Lgad1UzhJytPg6On1GCGLbKPxW+avhqv35I3tWXERtjiuKnPRmAIt49OmZScvV4jgL89b07bAxEoxLRSPKQMNHJlmKF1dpJQcxQZb2CjTlT/ACbKhYuWjU9IUL3+EY7ZCfCwrVitiQSSrM8YMi2Ae5BAUkgaHXUn01Oxp2LLVY5R2uPjul3S/wC0/qQmLa2JYbPX2yR7aGV72zDo3zFl04st084p59ln+p8Z8mPXWnKTdPDEABCuUIEIZroEfpFy3vbrcefbTZ7Lf9T4z5MeulNCLXZXqsuPJWxV3fFdu1+nH5HJtWS2zMPiEwUMvSCRsMCjJlygBQTmvqTVbUtTa84KMJXBjXKhv5C8LLyFS1ZytTgnlpwlTV/sSjB7pRv7SIEjLKX6Zl4LluBY26uo7aXxbKjkgwuHa/R+250uCM1l6S2tu4VC8LtzERrkjnkVTc2DEC5425VpG0pQqqJHARi6jMeq54sOR76jayiWlzyfM+nx+v7WvoPe0t31iwskzLIrriDGobQGOxsbEa8ONRoUtx+155gBLK7gagMxIB52599IqaN+TXgjkjH/AHHbHvdiCKTEIk5CxkOWJbKOrG7LdhqOsF4a1KcM+yrlV6QgqTezklg9wqXXMq5Rx0JB17RVfqaVYeUgggkEagg2II7QRwNdGDvyE0WA77MMbmJnz5TkUl7FtbG5HG+XQ6EA8DrTvsj2m4CoJGYhHIyu1myS5lJVS2UN0eo45u7SIYPeUH8YwuHnPxyrRSE82eFlDnvIv305Q7xkEGGGGAA36ikse3WSQs3Gx0IrTFSarn6nPzxj3x9CYI+ALXDMAS5PlKB1xoFC6WXNl7OF6ZdqyXgfwHrCmrCzUp2hJ7y/931hWlx245ct8HGa3ZocJcrr5lyeyNt6XB4dHhsGaQLdhewysxsOegqB4vfnaMSxO00LiRc4UKpIHJwNVq19t7FhxcfRzrmUEMNSCGFxcEa9pphT2N9ng36Jj3GR7ecX1rymXHllK4vg+l6DWaHFhUc2O5W74TteOW+KEuM31kgxDpLHeNVDdResVki6VDmZrdUQYu44nKnCjFb7MZUMQyxAkSKyZnYBpFGRg4C6xniDx81SXHbvYaYkyxKxOS+rDSMOFGh4WkkFu0OQbitPuVwnW95HWLE9Z+LZiba9Xy24WtfStJxH2R9PZBVXkzxNkLKIrZQb2hUq5LfGlvfhavfZRxIl2HiJACA8UTgMLMA0kZsR2HWn33JYPX3gai2jOCLFSCpzdVronWFj1RrTP7K0ITY2KRRZVSMAcgJIwBUrsg5kigFxe9ri9uNu21+2pHDu7FLCJU6eJSxUPKoeEsAp68kYBjHWHWII466U2Rw1J8Bt0rCsTxlsrMQwleO6sixlWC8RZey3p1rtvDKvhOf66XY07U3SeGNCCzyf9VEjLCHuZ1JF7i2tuOl6bV2VOtnEUosRlYI/G1xZgONtama724n4sRsVK3Q2TKxZcozaWuADxso7ReleG3xlCOZFjMipli6jAFmZAzMA1gQi6EWN7crUejlS5RHr42+yA7TgDKsoXKWLI4tYdKmUmw7Lh1JHMmmnEx2FS3FbTnaLoWlcpmZyMzWJa2lr2y3FwLcSaj20o7IfN9dLmxNY3Y2LKnJJHm6Q++4vFvVauuN2B954f5KP1RXJO5o+/YfFvVauuN3BbCwfJJ6orim8caKKKACiiigCk/Zv2NiJ8bGYsPLKntdVJSN2FxJKSCVGhsR6agGF3OxsbrImCxAZGDKeik0ZSCNCOYrqukO2NrQ4WJpp3CIvEntPYFHFiewCgClMTvXvAql3WZFUEsxwwUKBqSSUsBTbhPZG2rKGMeILhFzOUijYIvDM1l0FSDFS43eKXo0zYfZ6N1v0yPj2PXbkg0Xt51ae7O7WGwMIhw8YVeLE6tI3xnPafqoApLAb97YmcRwyvI5BIVYUY2HE2C06Dbe8f5PEf4df9FXesYHAAeasqAKQ/pzeL8niP8Ov+mk21sRt3EwvBPDO8Ugsy9ABcXB4qtxqBV8UUAcue4LF/wBnzfNvR7g8X/Z83zT11HRQBy77g8V/Z83zT0e4PFf2fN829dRUUAcuDcPF/wBnzfNvWM+5OIRS74GVVUXYmN7ADiTXUtFAHIZwkPxF+mshh4fir9NdcdGOQ9FedGOQ9AptzQUcqYeLCWGcsp1vlUMO612FYydEGPRm69lxY+gE/XXVvRL8UegUdEvIegVPqz92K4RfaOVo57cDS7BpNiCY4leQ2vlRSxsCDfQeFdOZByHooCjlU+tk63MT0Md3tX0KaG3dvfEn/wAOP9FZrt/bv5Ob/Dj/AE1clFVlpTw3g27+Sm/w/wD61mNv7c/JTf4f/wBat6igCoxt7bn5KX/D/wDrSTbGK2viYXgngmaNwAy9ARcAhhqBcagVc9FAHOnuRxI/7Kb9ySvfcrivzOf5t66Koq5ajKvxMreHG/COdfcxi/zOf5t/srGXd+dFLyYaZVUXZijgADiSSNBXRleMLix4VP8AFZv6n9SPQx/0o5s2dgYpzliBla17Rkubc7Lc21404PuTnFmw09v1ZB/KpPvz7HLQSe39mZo3Ul2SPRlPEtEBxHNPRyp53B9klMTlgxRWOfgr8I5uzT4rfo+jkFlnyS4cmSsUFykQHA7kpBIsiwTBl1FxIRqCOFu+ry3fUjDQAgg9GlwdCOqOIpwoqosCiiigAooooAaN59vpg4TK6s54KiAlna1wO7hxNQ3Ze62I2lIuL2r1YxrDhQSFVTwL+Pb2ntsOrRRQBYsECoAqKFUcAoAA8AK2UUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABUc3g3KweKjKNCqNqVeNVVlY9ug63gaKKAI7sra+M2ZIuFx4afDk2hxKAswA+DIBcmw847xwsRGuARwOo8K8ooAyooooA//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFhUVFxcXFxcYGB4aFxoaGhoZGBsYHRoaHSggGBolGxgXIjEhJSkrLi4uFx81ODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLSstLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcIAgH/xABHEAACAQIEAgQJBwoHAAMBAAABAhEAAwQSITEFQQYiUWETFBUycYGRktFTVJOhorHSFiM0QlJiY3OzwQckM3LT4fBDsvGC/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAECAwQF/8QAKREAAgICAgEDBAEFAAAAAAAAAAECEQMxEiFBBBMiUWFxgUIykaHw8f/aAAwDAQACEQMRAD8A7jSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSvJ3G+I3vGcR+eu/697/AORvlG76wNisQACb1yDEfnSd9dg0j10B64pXkYcRvfLXfpG+NfY4he+Wu/SN8amgetqV5LHEL3y1332+NfY4hd+Wue+3xpRFnrGleTxj7vytz32+NfXj935W577fGlCz1dSvKXj135W577fGvw4+78rc99vjShZ6upXlDx+78rc99vjXyeIXflrnvt8aULPWNK8j4vi11FLeGud35xt/bUGeNYn5xe+kb40JPalK8V+WcR84vfSN8aeWcR84vfSN8agHtSleK/LGI+cXvpG+NPLOI+cXvpG+NAe1KV4r8sYj5xe+kb408s4j5xe+kb40B7UpXivyziPnF76RvjTyziPnF76RvjQHtSleK/LOI+cXvpG+NPLOI+cXvpG+NAe1KV4r8s4j5xe+kb408s4j5xe+kb40B7UpXivyziPnF76RvjTyxifnF76RvjQHtSlcl8fvfK3PePxpU0Dj/G/0nEfz739Rqn7yKuGtQqsPBIST+qzecsASWJEyTzqv8b/ScR/Pvf1Gqbx6oUwoCsCcNbznZTGk97RAmqy2iUZbBY2b11QgAZFByRJPZ26dtRBOnaW3qzXGHiARI695mOv6qLH31F8FsqTmYgKpj2jetI1FOTIabaRscDwdsIb93KQAeqRJ0+6TpWPEEqJYDriRAnU7DuAFLlw3FcKsrmBOXuECfvrawLgqHIUZNBO7t+zFcs5yk+TN4xSVIYO8iWuuFJEhgB1j2VHX+IW1fqjq7gRsfTTieKd2bqjU7ARFflrCiBr1jr3D01SEY1ykXbd0jFfuK7K6iFBGYnQH2VLYBmDM9sAoY1WGWP7V8cPwynNmBciAABv31hR2si4YPWIAHZ2/VUS+i2F9Td4zauXLfURYG5UDX1isPEbrApmtKiwNgNPZWTA4nPbAIYjYFYPtB3rba3m0LAxoBBBB/t9dZLIlKp6Ilf8AEncDw2wLedcryNcwBI05CNKdE8OVt+BGEskZnNy88aDtI3J10G2lQ9tLyplHVM7xv/8AlfeKxl2zhrmQo2YZbzk6gtAELvOXn6eymKTcn2TOuKNriuK8YW89rDK625t+Et2xkIOrEjQz5uuu3KahuC2RafKtlWeRJYTBaToJjTQbcqx9HLt+0qPmZbJJAyvlDO8KASDJO512itu/xx7K4gI3525cKk7wNcx6287TvpWxmOkeMFm6LOGuC4uQeEm2kAwPMYrOsnb21UMbcWTIEneYrbwmIAJ19taVxlcmTpNFsFk/w38D40Q9i25dSLbMoOQqCxIBESe3ur447hhaxt0BFyN+cCxlGVgSY5RMjXkRpW3/AIUcPY4lrx8y0p17WcZRp/tzfVWbp9bC4kXQrHNOYtqCTMROg56d2lOXzotx+FlevYcC05RASwLTlB6sgERuNxt2n1Ql2xq0qAQdRp69Kst1ctjwpiWIgdUZes2WObDQSOUHtNV9439p+/WtLKUawEch7Kmui+BW87WyBpDx2gTp9YqLcD0VLdErmW841Ga2RpyEiT7KEFgbDWspLW8i2pBlViRpE8xPOtLx9XsrbCpBGpyiR6wK2b7go7QRZcx1icxG4IGw3itjo1w62LYVpIaWB2O+g76qSQd7hIswCF62u21ULE+e3+4/fXWek3DQq5lLaa6/2rkuIPWb0n760gUkd8pSlbFDk/G/0rEfz739RqmsbbjD4VpklDueQiBUJxv9KxH8+9/UapG5jPCjD2jIW1a9swSRVf5InwyR45aItYVQdWt5iBp5zTWe3gERJeQxy5gu0DeaxY1Tea0cpyrbUAdoB2qRtXQ6X7rLCWUyhY/Wc5fqE1TNOXFRj97NMcVbbMPD4RXLEDwplbYMsVPmif1dKYzJmUggHQBVGxFa/D2VibgI/ZQRziB7K+V4e5JCuMwEsfXyrnqtm34Na9hnF3QQRua+rmKC5chUxI79dyTTil9jFsZpEZp3Y/ea1bWFjW4cnOBq3s5eutcONOLKTm0yVwOJKyUJUgDMwgaekzW3i8SjKBlzZjqC0n0wdPXUT43bS3AUkHtPPtMf+0rEvE2ElQBAGwjSqZcXN60ItUWDBcPAIKqyRyXb16AVJNhEJPUM8zlOvsqF4JbF5WYuZUTudz2xyqW4Y729HZGzd/xNcWXG1bUv0axX2NpBlXzgttfOZjoo9HbWt0o4Ra8GMjddnU3XEsuXZZHaOUdprfe2BlsXAh8JncgwWCgDYmY1jetjpQUW1DOADbbwcoGy5RqxPJtVUHvFb4MfGN+TOcrdFAa6biTYVgtgozKWzHMBlDgR+6SfVyqKRDcaFfVjvcMAT+1AMdk1O8AzphjiEY9W9+cQMFYqFAWDGbd4jnPdWhh+Fu+LRbEHN11MSAsZiG/27a93bXRRnZmwnCLd274AtquhuK2kwRtlnKG5RPfzGrxLgz2ARcUxJCtlIVo5gn1aVgTEPbYZIJUksCAZy7iezepS9xxsQUS4jNbykC0HIGeIVgOR17/7VDJLv/hhgCMM9yP9VtPQoj7yfZX7094cWS2CNBnJI3Bykgxz1H11buDYEYfDW7Q/VUT3ncn21H8YwnjI8GGC66Ek6kgiABq2h2+6ueP9dnS18KOOvalQpzAkkajTMsgjsMTUVeSCa7LxTBcNw1nxW8nh7jMWyrJum4wjMAp6jAEAbnQbnU8Q4pbuWLzJcVlKkghtx3GOddK7ZhJUuw1b/R26wxCAczH99ue21R5uSJ5VO9CuG+GxGfwmQWYc9UsWk5cojbfc1YoWnGcPFyyFVV1OaFPMkkCOQ39lbmI4eoUZS2a2ABO1YjjGOVlAKh+sQYnbbadZirFcW2Lq5eay09/aO2qEkcuEF9PO5Ca4Zjli447Hb7zXeMdeIBs2V33NcHxykXHB3DsD7TV8fkrI7xSlK3MzkvGz/msR/Pvf1GqxjMVs3UGlnCWVadZLgmR6lNVvjf6ViP597+o1XHgxHirW1Ga6ww7oOZHgwIE8oJj01nMtExHC3lwi4lrgUO+Rf2tDuO7Sv3BXR4q9t7kZnDPp+qBO/wC0TWXphiFz2sOQwFm2oCLpBI1Bn9as4ItYK6iAeE8LbgxOsSRJ3IBqzScV92E2mRdnOXVggW0uig6TP1kmst7GLZJBBLEyRsJ/Z9FawcoQxzPfbQLvl7/TWvevXDqykFdNRr65plxX8vBaE66M2Jxpdmbzc0bb/Gox7nL/APTX24iGLHNvHZX34qQM1w5ARIkdZvQvZ3mBW/poqMTLM22fJQGAAYG9SfD+A3LltmGUBNDPnE8hH/t63uCOi2HdRqGgqT1iO2RtVj4J+jqtpVW4SXILA+vrVxeom4t14Z0Y1aRXeB8NxdpmVbTdeOYCx66mk4U7qxYjPJiNSvd2Gty7cZhF4s2v6pmPd2qNS0SQiBlgznUx7ZrhnJ5HaVM6EuKqxwywUxFlruugtkZuZLSSOzbQ9ndWDpVxEM56tt8quq3DIKsPO02OkRp9dbnR66Wv32fzrbEST1JVdAQRrzOkb1AcRu2mGRj5rMcwWNyWInaCTOu1dSdRVnPVs0LttrKE27of84CAhO6gGShE6EjXuqTY2xhmy9bqqXcmHa7ciVWNcoUsSOYHfXzauKg/N2lMHXMYOvZpBFfd3gt6+Dct25J1KJctyunJQ07AbDWqrJZb22VdWMkDcwOQ35a7VKcBsE4uypkHwigg77ifqmtTHYG7abLdVlYgMAwjQ7EHmKleAYkm/aZiW8ERDHfLyE84nSry0Vjs6/xK8SNNKqXS3i93CouQhbr6Zo6wEEmOzdavuBw9vLndRtOtcl/xL4gLmJzLGWOrG0DT7wawiq7OlsjLfFiixh1i+yzdvuyq0ncIxYBF/wBvWaqrx10LCCxaOsWMlm1lo5DYAd1brkb9lTnCcLhDYZGOXFXVYEuBAcMcgBykrII8068+VdEDLI+ipYLDkrl/8K6rwBcMmDdBbyG0iubigK1wy0NO56wGndXNklDEHU+qrz0fx1vwVxSxNwIhQaDKRmXeNxr3a1aTMUSFjg1y+8EKqplIMyCNDA/9M1P3cNbtXC06sBmnbQRUXwPHK1u9fDPGSDmGxXSZGjSANar+HxVy7bLlsxIMEnbXY1Ulk74QKxuq3P21wviTTduHtdz9o12nwJayrIvWGpHfXFMaZuOTvnb7zV8fkrI7zSv2lbGZyLjf6ViP597+o1dGwOXD2+H4kgdfCIO+UAIPZXN+On/NYj+fe/qNXZODPZPDOHvdMKiIuonUoVHp1IrPJotErnSZbYxV3F3WGW4QbQ5mVHWjmBUTxLFeCt2bYJBKm6SQM0vt6NBWpfxaXr8BS2Z8qK0hUUmIA379TTj3FC95wAmVTkU5FmF03jatYQcmkyHKrM3BsRbzMzHVVZsxkmQOXfMD11+3sezhQi53M6gS3rH96hPC9w745jsrZXFXGXwaSAd1QRPpjU+utXgUnbRVZaVIzW3WzmzZWukjKdGVO09jPyA2Ffq4LwplbysTuHJVvr0PqNZrXRXFsmfwDAcpgE+gVgHC2gGY0OaR5pBiDWkeMdS7KO34J3AcP8EpDIGB0zSwJ9EaVv4HBlUYB2RdAM+us7iACPrqJ8K1tVurcJAABWZEjnHMVuHHB7cyoLawARr2xXDmU9rydWPjplgwth7SQFV2/bVh9Y9FfptWmMxBO47D2184HDArnz5iwHViB6day3XKyFAAOmleTNtO3/g6UU/G4rwYZLLOwuliSdJkgbayNIB9NaFliFzM2bsTsM7z3a1m6S4tLd2EkBVgEmdRt/7vqvLiQ4M/96frdvrHrrtpszTSN3GY9V81jJ1JnmTt7Kz9HcbcuXlK2Wu5DrlDAw2glkIKzrGtVbHEgnWRI1Jk+2pLo7xZrLHqo9tymZHEqSux7QRJ1Fae3USFK5UztmAXD463kv4R1FrKF8JmXSP1WBBOm9fY6J4e09trFkEBpcM7E9gYZiRC6mNzp66nhOmACFYvHMAFzXFK2wIAy9UEjQ7yTO9WfgNy6Ua7fbLaHm9rd/orHlSN5QVk1jMZ1Y/V2Hf31y3pt4LMOuWufsz1UXs9J7Ks/FuKPcBNrRf2jv6fRXM+JMM7QxaJJY/WapjVsTaSNnB4AsvhCOry799f9sgj0ivi/dOZhGYOZ11Mncg+mr34G2bRtKsEIhQHcaExprqFHrqnXbHWEwIlZOwkEAnc7xXVRyN2RMnvqe4CpuI9oCSYAOggSCTPPSdP/CIu24OsHfUHQ99S3RXHPad/BorsVEKw03/7oCb4l0oCTg0VRaS3kU7mec9tfnRvCzZTDvobrE94WtXj3DBexViSLT3T+cA2WBOlWOxgwmIRw4ZUXKT3iKiwWa1wwhBatwNImvM/FUy3rq9lxx7GNenLPEtQVIIrzLxlpxF49t25/wDY1pApI7nSlK2KHIOPH/NYn+fe/qNVuvY8nhtm1OgS3z7D9W49lU/j5/zWJ/n3v6jVeOD4G23C2f8AXCEkT+9OnZ5v11lkWvyWiV3hjZWa7P8ApqSD+8dB9ZrVzak7z271u4m6BaCBQrE527h+qP7+utEDTbnvXdj7k5fr+xjLpUWTou+GynwuH8I4JIJcgEdmXarPgcTZWyXS2oRCTAWDPp51SuDYT86AT1W00PbV1ucMt+CC21NsAkFsx19M15vr5K6t9/6zr9OnWj7t8Ru3CGbMEkFIJ+7srFdwKXJDElWMkDf0Ht1rHZu2zkGfKUGo163b6q37ZtPomhAkA8zXncpQdwf/AA6XT2jDieF2zamzZ1OjAbz2x2VE4+1cViotOAB+wdu2SIFb9/iToYWSx1kaeqP71v8AlS/cBBkCIMHY+quiOdxXy7MnjTfRrcOu51UTqANCRr9VbLpcUlSIAiJEg1hwPB21JYEDWdie70emvu9i3yuCJCroTynQc9q5JNXaNLro5X0kdhdcHkeXPnIqCFwiuk9JOB+FsJfQg3V0ZYgFdo7oOg9Nc7xOGg6gqew160a0crPgGd6y4VQXykgD0x/Y1q7Gur9BOhJs5MXi0AZhmtWWHWjlcccp5Kde2pnLjGxBcnRu9GOiaW0GIxXVtgArbkyx3lpA07qkOI45rzAv1bI/07Q0LxzPYu3srN0g4iCwB6z/AKq8h+8ap/GOMGSqmWnrN6OQ7BXF3Jnb1FGPpHxstNtdBtpX1hOj7LgmxLnL4VHKdXNoskAxsWgme4d4qIwOAuYi5kRSxgu0b5VEsf8A3bV/4RxFMdhrmDFxQ5tEWz5p0EAERB5d5BO+1dOOFI5sk7NfhIZlw95o66BQRvosgH0Et6qrvSKxNwwdCOyOsBtHqqwWLbpg8KWGVlzIV5qyMyxHaI+oeitDjtufzijSA/oM9hPbpH/dWMymvcMDSatfQm2v554ZmCwoXfXeqtiFysw2E6T2HUfVU90DxTJi1AnK4KuB2dvt++oZJoXcSy4gkg5s0QxgidNa6T5Os4ZGvMZzIBHL0iqx054NmZb1pTAOVzGsE71ZrqeHwhw6kF0VSDz2qAU7pBxl7MW7BJzaxG1ctxBJZid5M+ma6Bi+Im28FZIMSe7SKoOLaXc9rMfrNaQKSO9UpStihxzpB+l4n+fe/qNV4wOPS1g7aPs9q2dDr5iz90VRukB/zeJ/n3v6jVd78eSrNyLchbKSdWGk6dmo9OlY5FdIvEgGcu118rdbbTv0+qstnDyqDQFSSZMact6wtxJzqdu4aVk4bdGdfCRkJ1Jrs+UY60ZdNk/bxGGHg0tp1yQTrmk+mpTD+EVmcg5QYyNMemKx8MwitDrbBUazpqO6K3sdj40W2WjnP/prxc0+Ukkm/wAs74RpW6NRlIDbAcljb0d1fuAuBSIdRm1neI5d1bnDEzDwjkJB3bt+FYuJWkhriQTuQBo0cxWFr+lbL/c3cULYUgIpLgEOCdt4rSzRGU5ZOgA39PdWrxHG5PAmTlZFJPIT3Vmt48M3WgBRox6s91TKMrITRKJixbWLmaBuAJHq761sTeUIbiyQJOVhDGBtptrUfxDiAuEowylNZ3G3bU50WyhV8JYzFiWLDW4ssQkqNSpykztTHhbd6KzdERxbF5EFxInLyE/qzOnZB1O1UDF3y7nQDMdB6eVXrpfwm7evrhsONFaSTAChh1VJ35n6tKj8L0eu4a2110m8z+DtDcD9+RyPb2dleijnJn/DjoLh2xpxVxluWrIlVIlTdAnMTEFVhjz1jsq29Icd1rl7t82eSjQHumsfCrC4bDXbrZVVmSYEARmEafX3k9tUTpl0mF783bMrzP8Aas8rbqJvhSVyIbifES7MeZ3M1GvX6prIgA/ONsPr7hSMSZM6b/gzYt2/C3Hg3LhFvXdVGUx35iyz/tFdEbo5hGbP4ugIkebEzzMb+neuA9EOPvaxBu5cyQZEwJJU+s9RR7auVjpViMTeGcllBLLaXRSwBKLHPrRv311uopfU4+5N3ol/8R+jbpZS7hg720brWlBYqG1zgjUgR3xmnYVVsUoe1AggoriOxhJ+s12ngtp0sW0uMGdVhiNvR6hA9Vcx/wASeGNhMVbxdsfmLmYOg2DGS8dgYdaO0NVJLyWX0OccQwxdrSjV2GSB2qSB9UeyuldDuj+HwtvPdM3ToWJ27h2VUvGBZxFq8pUqZAJ2ho19OlXXECQJIymCSdJrJlyTv8Is3JYu+XuOlUNOJizjrmQkgJBnuqXxnFb1gZLZt3A5jJOqg1QMezpibiTqwkx91Qgb3FrXhrfhUTRmJ/vXNcR5zek/fXWuAufFMpEgzB7K5NixDuP3m++tYFJHeqV+1+VsUOM9If0vE/z739Rqv+PUHh/D0UKJtozbCTlj1771z/pEf83if597+o1XY4pltYHNbkeLrlkghvNn0VlPwWiQOJw1wEgiBM91bViwLlsuVUlSPN0JqSxWKS5IClXJMR3cqz8G4XfuQuXwajrFmA256c6195uPfRHDvoy8H4qEPgtCAPN2b0dhqxWcSvWzrk0BA3qK4Rw+2l1zKkzox3j0VI4+xaBzhidN4mCeVeV6h45SfBfs64KSXZp38cCCYEJsBznurWfGK6M3mlSDI5HmKcRJG8apqQBI10Eeuvnh9ljZCcszaRqZ1B7I7Kpjgqt7JkzY4rhM6Ya4CWlIYToI5xWjimiIWSvb90VM3bKpYtEsRo2VNPWT31Wr/EF8GQD1yd60bT6ohLyZWxOUmIZSCbi8jOkd1WjBYxbItz1R4NSQBMaToSNWE7T21SLDh0aREHUzE+rmavmLUMmYktECCPN2nX2VrjjXbKTfhGS+RdueHFo5golZIUqD1Qx5GCTsYmsnFMALqreG5hWQkZSBMacwf7d1apXOwJL5ZIABgSNNTpMbA86xWZttmXRCNMraE6T1dR7IOvOtkZl9wPD0xWAfDPAJzL/tM5rberT2GuGcTwIt3GtuCjoxUzsSDEg8xXS8Nj2Vw9tj1CCy6iY1Oh30599RPSvI+JuMnmsQ3rIE/XNWdNdiLktHOWvoh63W7h28pPIU8BcvHNc6q8h3dgH9zVlu2o/VHqArUuDuqYtLQlctmKxaCiAIAq/8J4tgcGFa2j3boGrntI1AnzRPYJqiIauvRLoW+MQXXcW7UkaauY3gbAd+voqSCxdFumd7E3yhtqEAmFBJ1IGp7N6n+kuBTHYZsOGUXGXwiA8ipgEjcKZj11o8Ux2H4bY8FYQBjooHnM3ax3PpNU7g/FrlrEHGXWLQCGP7U7gd3wqSCnW0Lk2GVkNt4YEa23BhkPLccu/uq3cT4e+JVLU5II63cNqqHS7pdnvtcVQM7BiB3QJPfAFbWJ6aTbzJmzxHdFZyRZMkDwG3ZfVg75gMw5f91tO2EuXGCZfDjQsw09FRWD4qlvDi4zyzNmM6kmq5axDXrj5FjOSSKqSWnDdVXWRof1dta5BjD+cf/c33mr/wrFLbGTcloYVQcZ/qP/ub7zWkCsjvNKUrYzOLdI/0vE/z739RqmbPSFGGGS42lhAshTOg221jtr86adHLtjG4hbrIjNddwDm1V2LKwhCCCDy5gjcGoTyb/Ftfb/BVWrJssq8dws6SIM5iranfYCd62X6T2WYO1x9NkytEdm1VHyd/Ftfb/BX75O/i2vt/gqksSlsusjWi1fldaVhlYZSdeq0ju2qUHTTBsgDGCDOqMfuGtc98l/xbX2/wU8lfxbX2/wAFZv00NFvekWniXSiy9zMGgEyYDTp3kd1bT9LbGR/zjB2KkQrADLtyqmeSv4tr7f4KeSv4tr7f4KlYIor7jLpxjphYe1YFtusqEXJVtSY5xUUvGsMsQJIBkkMRPbETUCOEk/8Ay2/t/grG3DwDBup7Ln/HV1jrRHIseD6R2iT4U8wVKqdI5RFWpunWF1TwzFdJbwbDN3xHV19Ncx8RHyqe7c/46eIj5VPduf8AHT20OTOoWOnmECkeFMsST1H0MaHzTuQB6607/TPC5+rcOQnMQEYGe2cskz6q555P/ip7tz/jqSwmIZECThnUTGewzESZJk2p109gpwRHI6DhenGAtmVunrecMj/CawXemGAJJ8K30bfCqPiMUWVky4QBua2HDDvBFuQai/J/8VPduf8AHU8EORfcT0rwZPVuH3G+Faj9JML+2fcb4VTPER8qnu3P+OniI+VT3bn/AB04Inky2N0gw3Jz7rfCpjo500sWmzNibiIgZgih+u0QFgDKATEk8hXPBgB8qnu3P+Osp4Oflbf2/wAFTxI5F5v9MsOzG491ndtzlb2DTStTinTGyyC3bLFQNSQRVQ8k/wAW19v8FPJP8W19v8FTQs+MRigxJnetzDcRti3lO/bB2rW8k/xbX2/wU8k/xbX2/wAFQ42LNi5xJSuXMdNtDVs6JdIMBh1DXHZrhGvUaF+qqX5J/i2vt/gp5J/i2vt/gqOA5HQOM9KOHlF8C3WzS35th65IrmWJeWYjYsT7TW75J/i2vt/grPgejty9cW1ae29xyFVRnkk//wAeueQBNSo0G7Oz0qwfkfiexPe/6r8qxU6BdsI3nKrR2gH76x+I2vk090fCtilQSa/iNr5NPdHwp4ja+TT3R8K2KUBr+I2vk090fCniNr5NPdHwrYpQGv4ja+TT3R8K/HwdoAk20gCfMHwrZpQHAOkvTWziLxYKqIsqiwoIHaRPnHfu0HKony/Z/d+z8a9EYvhGHutnu2LNxojM9tWMdkkTFYPycwfzTD/Qp+Gpsijz95fs/u/Z+Nfvl+z+79n416B/JzB/NMP9Cn4afk5g/mmH+hT8NLFHlPF2EZ3bMOszHzl5kmsXiaftD3lr1j+TuD+aYf6FPw0/JzB/NMP9Cn4aWDyd4mn7Q95aeJp+0PeWvWP5OYP5ph/oU/DT8nMH80w/0KfhpYPPi8eswPN2/d+Nfvl+z+79n416C/JzB/NMP9Cn4a/PycwfzTD/AEKfhpYo8/eX7P7v2fjW3wrpfasXVuqEMGCpywwO678/viu7fk5g/mmH+hT8NZLHA8KjB0w1hWXUMtpAw9BAkUsUfPCzYv2bd5LS5bihwGQAgETBEb1teJWvk090fCtilQSa/iVr5NPdHwp4la+TT3R8K2KUBr+JWvk090fCniVr5NPdHwrYpQGv4la+TT3R8K+7eGRTKooPaAAay0oBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRlIJAABXRUJQVlA4IEYJAADQLQCdASqrAKsAPj0cjEQiIaGSqmzoIAPEtLdwuPCCDQnw568ssU4z6e/nvYX2z/wXdL+6H8gOUwAH8w35X/0/5OJmvfjyueQeoB/zb+w/677dPqU/wf2d9KP1J+wHubf2L/Y+td7L/249nj9pSNuzRmRTmBd9jhPzcSOCkE5S6Ptk8se8fZpC8j34pPIpjBjl0/EW8Qjl+53Piplvyvv0g5dOaVyc8C+I6QchK3T6tcHcvdXLAWg9J2nZjEjbZZZDFClnwDzYF6XtBVsjJ9Gya3/3MhUlOhino95CY0LJn3X5Q9RhhPWfUhnG6ES/+0hElqkxFogKezxCj03JG22pcsoYzB9LkDP52QIZN5PWgqVZRP2AAHGO2BtQpEN3onM2ujVvR9+G+nWuOzHLhi3MMP3iJOH8A0xStVjidlseSyKbxfo5nU/YKMD/a14x3t7NZpjeOB32pGTaP17coQSdq6x771aZ0q7ILnRGFgutCDvGwdnq/MAA/v+sIdfDDOlZbLSlCks12fxRh4tWHFmvCby12XY9aMQpaI/J//R5Ls78JGw8JU8Z2PDnsXcUQhm0dn/rdKvi/GHL8q+gdjEtwfCSc9t4t2GxET35tn+qzu0zZ+4wjQD3u9ajvhGfjW7q9RSa9Rzs9tsxcKovUDzDAnH9hU99MNZBz4jruZw2L4NteViKZeZerCrfW2sVmA4X6Yshqq3740bfkiGBo63qQj+a0hIk8Y/OMYSl/QKHWCLUlNuOCdQXjqX2p397vTOHfjUS7Dgg6pJJufuU5zbOD6GgrPnc08Ws4TfBVQ/chhx5eH9Ljxan2KoHQnFe5bycbtClV3GtqZi7xB4KiB1cNePmMLpB65YeUmQE3I93DW8UgYRLMtSmboOzRbtuLknnLYDDSJ+hye4mWeADyccB80o2Qhx54YApo6n/Tufmhv0eIrvPZdrA2YuI0Jx44On9+P0O/2vwyX9T5R5TcF4ctK99/P4T/XoLePILvQkbTHxpDeC235HTfjnM+t2D2fTsAL5/BMCEf4ONpLsc+lwwA/AA+iODwjme8azwbMe4Boeytukg66tLmxYCIMrOyjK8Gd8RYS95RsRTz/+FG8zXyq4/8l3Dgl8oFgoy2kT34xGFuEGvC6kfGOn8ZIHNFqf8BLdXQzpjvBZwOoF85HAv0f/SLIGn9ji4BKJR5fhPHY3TxOv8Za5bgwbv/h6hCANRp+PJrp5wNNHRArBH9LBE03k/0keiQPTU+/PVqgfjhbYvDtW3yb1/5GXTCfaNEjtdpgunQUcoSpu6vW0PScFKrWLNkMaHJK+hA29UI4J6X8xr4yuXWFo0IgLYZSk+G2u8bZtV+wSh6OwhIfkdZ0p6kHmDSxOzCXhUEt1RNirfWpKg6WG7zOBThLJvI5+qvA0eU8t49JtLgN2rftmcUvlw9o7qhkYPMzN29WtIMYmOeKCnJNCj5k4XwZQypojFm+qxMRNdqiHjj1f638QjktneRc+Hf+qpfXB8O7yRVLvj+WNeX249cotFb6iOf/GRfjEZgu9RRnCoGP04nYa44bJ3IYgGNP2sTzujAef3ZB1hZSPlzNC2yOQliY4/ieWD4UUUuoO3G7eR/1AA3e4oHwXyMFtEmtzd5gmRjLqSJxW0GdKuQfJGSX5qllJMKEI4rW+U/hNEnI/igFW7+DwnMjUovRo5YXIlfwhAaZ0oUa4WeAnRAEdffHmRr5ATXLczqXdP3UiVTjlW6CmkGL7LXDVz7mkiSgAWQUgQZHpZXwYKRajn2R051kW72SsXMqzpWNLS3tfATgSPt2kk++OH6Rq6iIFBL6yFHSxhuPRcwR2cBpFO6sr6joV/gJ5dHareN4qcEQCzYM0Gly2lkGOxB6IR4AeCdlLveIFINZli7fz1r2Vv9p4Ln/nDbhyNOb71MjzN8hwFyfJNAp1GzTwdfjnPgsDEo748uNpmhINHD1eGcWUPeu+MiNsih/5tScKsssv7ujy4lmIdipAhCmG9oQmrzJYoThWeVM05g6woMGfs75ycb8XW7O9xrI3uyOoEUWrTSUKwwPuPgsnUB+2cwgz/qSYukw2o2ef+87CTPEQ7i9oOs+999cGXOtKzV5rO5IiIjxEwBrjaZnK08oTrNx7uA6CSQJwfekSLQDaxp2JX+7d8TCt+buY1loY+lN/YmSlfd7GVwAnI7VLTK/3zirdWWh1iJ5e0H+LYJnDNJ5Z7mapePt2qHmNTNg4HjAKBXPCd0srgQqtwpWVxrSXqZ7FVjv3Umhxp6F6fjDGZIhQ+zYbRPinp03DdnYAcH27Jfbu9f6qdY31MAf98NoB8k+45TqGMkiFiqYAaD/VKj87YbejqKojewPeIxvQ62rbuZkAPb3TXl/Rq/roO/OUs36xSk5BfxhTXOIqMNejbaOV4PNTQGHav76CtriBSs6gT9Yu2F4xvcF161D/3lP61Rhv575wVkf3KFQUsN7J1WVAdGeTbVgDSf4Lfxt3fqwCLYsBxFO8k/R8aZ36OH2cVQCCVuqzmpLyiQ4rpLTP4cwbCZ29pmwR3ikAR20Hgo2LrKocxyjWOH0Y4BYvz/l7rBT8Hct0ZQoV7accTzEaGiUzkbz0ZcrK6qRT6gYqtIL/KHyigET3FT2nVedueGG1JgOuaNc6O/5jA8CBhJ+FLKUeowYXo+oFLO6XzIYsQ6LfATzykqaosrbK4ubcFWctKwjdMpWtD93jq/fuF38UpOESfPQB607FqPqrAIcBsvzVbVyisX6/ZlpEhijatTpWttGxXdGmiVeEV4591lvJdVPIQ1So6F0WWPdipc4cEgEx3fXiT6/pPWS8H4Jxu+xGlkqPmh966T3e9XmGmp9RWXuvQc1mjeewLeWgi2fFztJ4/GGniZ68btAqG/D+nXhyg/E4CQ9MwMl4GShKM53MZxEr13xbS00zLsJs5iNgSCsH3CUDSOXepQAtl8lmkT9iEoeM6q7lxELBh863Xz0McSAHnSDG3kSpHtfKsKvTgh3H7mz+WaSvfTOM/A8AXsRMPO1DGhjlmM1FPoofp+e3uopa2hwaNL2ub1XsI48zbVYeZzd9Cof9aX0EbXmbXBqPx4OKBdIYISDn5/7/dtrq/ZPc5xiCl9Yah1RBlMHC4kXY46wMtXR+hgISxtsqsTDyXZZxeoEejXAAA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTExMWFhUXGBcXFxgYFxgYGBcYFxcXFxcYGhgYHSggGxolHRcVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLS0tLS0tLTUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAADBAIFAAEGBwj/xAA+EAABAwIDBgMHAgQFBAMAAAABAAIRAyEEMUEFElFhcYEikfAGMlKhscHRE+FCYnLxFCMzkqIHFYKys8PS/8QAGQEAAwEBAQAAAAAAAAAAAAAAAAECAwQF/8QAJBEAAgICAgICAgMAAAAAAAAAAAECEQMhEjEEUUFhEyIycaH/2gAMAwEAAhEDEQA/AO+GFDvE0gjiIISe1MIf0zbJcdhnVqRmm8joY8xkrih7VVILKzQ4ERMbpHO1ism01R0KLTHNjXY5urT8j6K4P/qYXUa7S1zW/qU5EtmXMMG+ggs0XebMc2nVcHEBrmxJykXH381zv/WCgG4WnWDQ8NqbhPAVBMz/AFMaO6eJ2ici7OGwePpvADyGkiQT7pAzvoRqD801+gM2kOGdiCuewdQVG7wAn+JvA8eUx3hbp/qMMshroiQLnqtXFHOX36cQsaxVP/cMTq4Rqdxu9loDA805hdpgtBqtLRO6KkeEnhY2PmOihxYxsN8rLGgzbNHpbrrtcHdCDbstmjxS6GDaYVhhMQR680iaRU2dbosEdJSxhsRmErtPaJJjMcCMvVkjRqLWIbm7gTwuBy4qKNUysxTjPJbwVQb5y7/VM4gb4Hy4xaB64pF7YKuyDon0wW84F+HEoL3HqBny6/TRK4XEeEEk7wnWLT+yjiKoLSAY+/rmkmU9g6rpn1/dKPEogNkMuM63558laZDRM4SWOfnpmJGekycik3ExB0y8+Mcyi/qEKL6xOeUkxoJzgZBCZLRCL2nhf5rGEATEuBtkR0LSDK2Pp69FSa0BwlpItkYP0KqyaFao/stbl840Nzzm4zRHG0dft+yHUjPXoAO0IbAAW+vmo1c7COHe+euuaOaZzAnPIybXMjMceyE4D1xSsYKqybgi8kDUXiCYideF+yXf0j6Jt1LOLgagZC1yO41QgyT/AGntl5IsYuQbHt0iDMeV0OpcyTcyT11PriivHJCcL5oAHXIMWgid4yTvGSZ5Wt2S7mplwt/fz+cdkFwQAusRDCxAz3sPY6zhB52+anVwggmbRrdELAcwsZh490lvLMeRWJ1iuIxzP0g53hsW+KxtLZ7xK5/bzTXwFXdksgON/CTTcHEjiLETGhSe2cPQdUe67XSZbHhkWyGSsPZjGNqE4N1w5jgP5RFx0us496I57pnl4wkEEEiDPKRcJgY3ED+IOEzkBlpYZIQcWOLXZtJa7qDB+YRG1BqusxaFcXjqjnNJaBBkQPl9fNFqbTkkllote8/jNFq0d8EAidJt80o3BEghwjgbaosVFhh64rERUcHid0OJ3gABEO4Z2HAp7C7VrNgyHtv7wvPXPuufqbPe2/7KWGr1qYhp8IvFiOfPRAqOuwe3KboFRppEix95pvGYEi4OYVwykHNlpBBuCCCD5LicLjqdSz27jiQALw4HnFj14q0ZhnC9Fzw2f4XRBmDOhyIv5hS4pgdD+kRZT3DBkWFj3+y57BY/EMD27wc4jwh+YMwYki4+Em8olPa2KplpqtY9hzIEG/PIETlGg6qXjY1IuKgIAEdUs9wjT7qvx/tMZmnS8A97ezdMixFh/Dp+4cP7RUnPDXs3ARG/vSAeYgQM79FPGSL5Jly6nIBETHTjbnZLvBFx00OasKGGJBIgjO2s6g9VGthyc+EeSmx0V7BI+yg9ybfS3UKq2bn6JqQqF3N9fhRA5adOU+vyj7ii5iqxOIDe4yfyt7k69be6JGuqluc+Cg49P7J2TQOoBPbO/C/rmgub+6Ye7+99LBQa86ecSRrnx5osVASCBab524H6yEJ4sO/7ItRpz/bnlwQz9Ljz6+oTsKAu/sPXVDLiDlccp+qMVB98z5oChcqLokRAy6fOUV1rj8x5jNCc2BMiZyvI5zl80wF3IbkaoEOEAbZRaRJfB4bpPzWIRWJhR7rtLFClSc7sOpsFz+w9sPp1W06ji5lQw3eMlpJgQTpNl1Y2W3EMLH+6eGYOh7KnoeyVKlUDi5zywyCbQQbGFyyjLlaO5TgotPsqPabDN/XceJHnuiVXbLZ/h8S15FgbxwcIPyM9l0+29j7wc9hl9yWm+904FczTdvCcyE0qOOTadlJ7VbJfTxFV4af03Pc5rrwQ470h2WpzVE9pGcr1jZGLDqYDtLdRmPkfklsb7PYWrPh3CdWWHdp8J8lSzVpo6PxclcWeXiDp+6JvOj9pyVr7R7IbhnBu+HSCfCLt/qaeOkHQqrBmwIM8rz0/ErdO1aMGqdGg6fDe9raKFCxjJEcSba8/wbLQbOVjryQBH9Br3bsweURPOUEitRdAL255EwmRSuTCZFYj+bgDcIExDDbSrNJg70mSCAZ1IvkDewTp2801ANwinlcy5txJByGoyMAlK1Q7fncBB07cUwzZQGsg3jUck7Ex/EYK4O/My0Sc7QR9UjV2eRok8WXNLKYJAaSWaQSZseKGNpVWtazINM6yb70EzlKdiLnY20amFJgF9M5tOXUH+E27wu5wlZlZgewyD5g6gjQrjMFUp15LPeABc087d+CYosqUSTTcWE2IGvDqonBSLTaOpq4Y8EvUwx4KuZ7SVmt3XBhI1IMmw4W4lP0faKkf9QQLXbJ6y2JHzWLxyRSkma/w6G+ic/ndP0dq4V2VUa5tIjrvCB1S20dq4WnY1ATwZL//AFsO6ipL4L0JPpHh66ILqJWj7R4fRtQz/KBGvxKWE2rQrO3WmHaBwienFV+y7RNIC6nlP3QajCLW9fNW1WgR9Y5pN9FJSE4ldu5oZHL1xTz6eaC+nfLmqUiWhMjO6i1xExr8ouI52R6jPvfj6+6G5ljPbr+M1VioVc1CcOSO4KBCqxC72epCC4eimd2czHz8uagHloMGJEHmJn6gJ2As4QVpEIWIsD6D2RX8B48kVo8R59s1y2Fxppm5t9FZYbFl4LqZ3wMyC2B+Fkno6ZRpjOLbumxyK822rQf+vV/TeAN88bXmM+K7PbG0m0mk77X1NGA71+LiMgOBuVxRAMvcYzc5xMRzJSl9F44R7ki29m8NUp736ri7eM5QAltve0racsoGXau/hb04nnkqKttipV/yMPvkHgPE7to3r34K+2B7MU2Q+uQ5+Yb/AANPP4z8hw1SpQ/affoG+f641S9lNszYFXFHfqlzKZuXn33/ANIOQ/mPYFdbS2DhmU9wUWFpzJAcTzJNyVY1nlokkbvEmB5lVdXa1AZVR2lw/wCIKzlOU2XGEMff+lVtD2Tpm9J5b/K7xt7T4m+fZc1tDZz6Jh4j+Zp3m/8A6HcLsnbVpuycPmPqqvEy98kzwWkZzXYpY8cv4nMtGsgjiMu/DusZP4yhdLX2ZSfcth3xN8LvMfdV2I2PUb7jhUHB3hd/uFj3C2WRMwlhkivc3WfL1ktsq7uZPf8AKhXaGmHhzDwfYHo8eErYpkRfPLX5qjFoO3EgjxZcc1jqTH5Qli0g6DrbzWE37+s0E0SOD3TLfCbXFsiHDrcA9gnMLtSq2p/mzUpuJLoADmzlGkDh1SLcQ4HP7opxJ1Ejy+iYbLRm0cPVs5244C+9kL3AOuaFh30Khhrxmba2m8cLKqxNRhBIF4jIT5qo3k7GmdtU2VIkXBvPFVuIwBCS2LtarSktcSBEtddpA5aGBEhHxHtU9zv9JgbwEzrrPTRLZfJCtegZJMpd1M/CbHMfLor5mJoVWyHBvJxAKVpuY/8A03gkXEWcI5G6AGNne0LmQzddWGkkBzf/ACyLfUpil7SU3H/Mp7jZiQ4OjmQBl0lVFXDlpJLWnenMTGeXBVzqECIHWL+ah4osOTR3YY2oN5jg4HUGfNL1qC4vD1qlI71NxaeX3GRV3hvap0xVpgjiyxHYmD8llLFJdD5J9ljVpJetTuYmNJzjRNjaWGeARVaOtiOxWhuOuxzXdCD9FFtdjorXNIQHNVpUpevXVK1KV+StSJor3hCI9dU7VYecD5JZzVaYqAStKRasTsD0X2j2q2j4Y36jh4WgxbKXHQfVV2wKIquL6wbAMBrRE6nxe9803t3ZrDU/VM3G7vAAi2QIJEZ5jy41X+Ip0XQ6qAAMiCDfllpxXMpapdnfKLvfRf1cDTdG6w2IFnOk6yb80ntPY1iKhJpxvHfJ8IFi4E5EDgmsF7VUh/o0zUcPicGNy43PySW19rPrOBxDhMy2kwbtNsXl0mXkWztyS506b36FwtfQPYtJtFoFOnuzm513O6kfTJG25tepRYIA3nGAcwIzPPSy1Rxp4W5JH2rM4ffGbHNOWYMtIjuMuCpK5LkObSg+BRVsU+oZe4uPMzHTh2WhUVezEg52PmPyPmjB/wDfTzXYeaPMqpiliCMiqxtREbUQNOujoKG0h/EO4TjKzHZGeS5htVFZVWbxp9G0c8l3s6GowEQRIOhvPY5qsr7FZc0yaZPw3aetM2+i1Q2g4Z3TlPFsdyUcZRNucJ9lHXwlZlywPHGn73dhv5FL0wx0gGXfDEOkcjErqXeaUxeDp1LPaD1z7OFwqWT2RLB6KB7CCch9/PJYHkAWtkU/W2Y5sGnUy/hqXHZwuAkcQS332FnMeJh7jJWmmYyhKPYjtEWBbOsqvBV4GhwmbcQQRHOPulquCDsh5ZFUQJYebkZaqVah607QmKFDdsR5C6maQmQe+UflMCua+Omqaw5LCHssR3HMEFQr07yO4hEpGBBtqgBobaIs+nJ4gwNdI6Jl+JoFpdvDW2RtpBVR+qMjkthgANkWFlmcKHCWkEcRdJ1sIUnTJ95pIPIwfMJintF7bO8eWeY7j7ygAVSkfJQaN3TWeBHQ5hWlOpTq+6YdwNih1cImILh/aJ7bObvjjk6OZyPkE/T2tRfruk8bD5KhqYdBLCP3ErN4ospSZ1JpyJFxoRcJWrSVHhcS5hsSOhPoqb69QEvbUJnO/H+XTso/E/hj5osyDxKxVn/dKgsd2eYusRwkHJHsbntc0xca6j91wftRRkndbbzjogbP2xWoGxkcD+Cr7D4/D4jUU388v2WCVbPT70zz4B7TbeB5GE5g6NRxk7xJ1Mk/NdzW2LFy2RxGR7olDZ7RoPXROU36FDBFfIlsbDOIE/JWG1cBv0ajYklhjjIFrdU3TogcvXkil1lnyadmjgqo8iU2PIyMLo9t+zZDi6jkb7ptHQ/Zc5VpuaYcCDwK7YzUujysmGePtBm1hqO4/H4hEDuF+n4zSUqQcqMx5tVEFVJCtxE88j+/dTaeBnlkfLXsgB9tVFZWVaKiK2qgC1pYojIptmNnPzCpWPEXN72yjgZjLkiCufJS4plxySj0WtTENERJJyAEnvoBzJCGRUOZDBwb4j3JsPI9UkyumaeLPVQ4V0bRzJ/yAVdmU8xLT8QMH8JWrQqNyLag5jdf2Ise6sy8Hkl8RXYz3nCfn5C6E5ItwhJWVra7QYdLDwdbyOR6mER9ORyPkpVsQXeFtOZ+L8flCoYAiSHlpPw+73BzV8vZi8b+CDmDUX5G/wC6BWZZNVW1B7zd4cWWP+0/QQoh7HWDjPAgB3kTftKadmbi12VD2kJmg6RGqcfhYzPP3b/VBYxgvBPkPuUyQTmkIU8Uy97dAe9/3QajQQmAIt1lHZj6o1kcxPzzQqbXARCwx0QBa0cXSePEdx3PLsVL/DNd7rg7WxBtlKpnBQITsVFliMIBqPMetQk6lEhAIRWYlwzuOf5RYGF5WkT9dnA/JYgDpKtLiO4StShqP3VkaRHumRwP2QC1pOrSvNjI9+UCezNvVqBgHebq05eX3C6nZ+28NXgH/Kf18J76dCuPq0uI7hLOpR7pWidmLTR6VUoOaMwQfWeSAXdQfJcZszb9ahaZb8Ju39uy6rA7coVxHuO4E+Hsfyk0JMzEjjH0VfisKx43XNBHA/Yq6r4cgcuVx1CTqUhw8kjVM5PHezOtJ3/i77H+6ocRh30zD2lp5/Y6r0Mt9FRq0WvG69oI4ESPIq45ZLvZhk8XHLcdM85lbldTjvZZpvRdB+E3HbUfNc5jMHUpGHtI56Hocl0RyRl0cGTBPH2iLap1uOf2OYU2kHIxyP5/MILHDUflbcBoZ+qsxGN4jNTFRKsqkdOGY8lMOB5fMfkfNADTaiI2ok5I6cRcea2KiALBtVSDhMxBOuvmkRUUxUQCdD9Ddb6zRDBvZINqIjaqhwRtHO12MPJ6IFam1/vNDvr55qba6lLTyU00bKcZCJwzm+48x8LrjtwS9SRdzS3mPE38hWxp8CoFhTUyZYUVO5N2wenqUBzLlWlXCMN4g8RYoFXCO5P62PnqqUkZPFJCUwtOnVFeIzBb/UJHZw/CG5hiY7i48wqM6ISsMKK0ZTEY5DUpWSkBBYpLaAOno4lzTB/ZOio14v67pNrQ4eG/8p+xQi2MvLX9159We8m0WBpOGVxwKE5rXWNioYfF6G6bG67n9UtorUuhJ+FI5hKvG7JEgq1/ScPdMjgUviSHAgiCrjIynAzZPtVVondJluoNx3H3C6zAbUw+IFnbjuBPhJ5HQ9V5tiGwVrD1C02MLZx1o5ozaez1DE4V7PebbQ5iOoSxCoNj+1FWl4XeJnwm4/bsunw2Lw+IEsduP+F2R6OWLR0KQp6sseA4QYcDoUxicM5lnAjhw7FLOjX13RRdlFtH2cpuvTJpu4RLD+Oy5zG4CpS99tviF2+endegBnPsVB9MGRpkeHktI5JI58njQntaPOpWSuqx/s6x92eB3L3fL8Ln8dsyrS95vh+IXb56LeOSLOHJ484f0LteRkYU98HMRzH4/EIErcqzAPB0uOX3GYWNqIIcp/qTmJ55H9+6ADCopiolg3gZ5ZHy17LW+gB0VFMVEkHojXoAeZVKYY8Hqq1r0fCVgagaeBUSSqzbFNqSQ4WoZb6yTBYND67obmkevssrO1xAPb5cxKVqYIZiWn+U/ZOlw9WWt1NSohwT7Kqph3DMB3Sx8svklyzhHfwn8K7JQ6lFrswrU/ZhLB6KSo0ixUCrZ+B+F3Y3CTr0C33hHMZeStSTMZY5LsUWKf6Y4j5/hbTIOpfQDvE2x+R/CG5+jx3/AAULD1vhMctOyaZVDrHyK87aPf0wT6Fpz5jMdeKE17m3FxyTX6Rbdk9D9lCA7+V3rRNMlxC4fFzz+qas8cfqqqrRjO3MZIlLEub71xx1T4+gU61Iq8ayD5hLjNWG0oJkZFV7hkuhdHHJUxtiM1xFwYS9I5JmLLNmsS92R7VVKY3akPZwNx24Lo8LUw+IE0nbr/hdH/E6/VeehualSqOaZaYSKTZ3dXDObYg+voli0zKr9me1bm+GqN9uV9OhzC6CkaVcTTcJz3XGCeh1SovkvkR09QoFk/f9xojYilumDbqPQ80JwP8AZKirKXaOwaVTxN8DuI909R+FzuP2XVpe82W/ELjvqF3Hr1+6i5oPr7K45JIwyePCf0zztblddtDYVKpJb4HcW5Hq1c5jtlVaVyJb8TbjvqFvHImcGTxpw+0KSpGodb9fzmhysWhgS/UU2VBzS6mxABKlbgpbMqRUB5H6ID1mHdDgfWST6Kg6kmdGXhS3z1SWDY+o5rKYLnuMNaBJJOgC6rDez1N5axj3lwjfIFt7J0AiYB45+U80ml2ejF2UO8DmFE0eB+66Wp7HYgN3w0lh1i0aG5uDksxPsRiWNLvDvfCDeJg3Npm0amUucfZVWcwWuGk+uCgCmsVRq0nFtRjmuGYcCD80Hfac/XdXZLQOFunRDn02uuN645AOJUv0hoVJjS3ecf4adRw/2lo+bgqj2Z5FUWUFNogSsTFPDyPWlli2tHIoMsHYecvXZbDyLO89f3U2GOY+YRxDh6+i4G6PYSTMpVT/AFN+YTDmB3PmMwkjQLTLD29ZotKuDY+F3yPRKvlFJ1phLtF/E1b/AEARLbjgpNqRnY/I9VsMvI8J4aFK6HSZW41gi3NVbtVfbRu3KCM1QuC6IO0cmWNMLRKdYVXU3xHP6+oT7CiSHjdok3NShRBuFKVDNECeFvD4h7D4T2U3DNBIumhSOp2b7U2Dazd8ZX94dHa9CrinTbVE0XA67psR2Xnrwi4bGPpmQT65oonlTO0fYwQQVB9P58EtgfaZtQBtdu9zFnD8qzGD3xv0H741H8Q6hJo0U7EnT1+qhug8/XzUnOgwQQVp7bfdTRdlTjti06lwN13FuXdq53HbLq0rkS34m3HcZhdsWn8ITlccjRhk8eE/pnnym1dZi9k0nyS0A8RbzCr6mwmjInzstllRxy8Sa6KKotMCtamyI1UBgyMwn+RCXjyT2X//AE7xNJmKisQA9jqbXGIa9xbBk5SARNs12NU1MJUqO3d5m/u/qZyeBOpF7/hebUsL3C6vCbeaaTademXFo3Q9pElugMjMfFMnVc2RW7R1RTSpnS7T28HUJB3TvBog3DRZsRonvZjbLQ15eX1Ht8TYBdAgy4nMx9yuBq7Rw/ullWZ/l+gcF0GyvaGhhqZ/SDy9wIIIDQcokybzPI8FzLC0bOd6F/bradOu5ha1wcAZLiJcDqYMDKw4LlXUgmcRL3FxzJJ5DkOSCQV1RVKkRXsH+mR+yhWcdyoT8LW/7ngn5MKZEIGM/wBKp/UP+LY/+0LbHtmPkagBwjgGN6cON1tHa2ABOSxS3s0UaVCwJafF5/lEIIMi30Kt9obJcyS2XM/5N6jUc1UmkW+7dvDTt+Fm0ntFxlWmMUnznY/JRq0g7MIdMzl3CmHcLHgsemdF2gYe5tj4m/MflNUSCPCZHDgh59UM0iDIsfXmmLoPiRLTrbuFztXNdAzEB1nWOU6d+Co8S25W2Mwz72Ln3eh+v9grCkbBIMdB66aJuiVpMwxdhyclMobj9VMlZnSjZQn6IhKHUP1QhSMeFBEchJkSMIum8FtOpSILXEdDdKuzCiUCOzwXtDSrDdrtv8bc+4TNXZ5jfpO328R9wuAJgqx2ZtmrRcN1xH35EaoopTOiD+Nj6zCw8fn6+6Lh9q0K9qgDH/EMvLRaxWCey7TvN4jVTRomKuFsyhlv26+SmH9lou9es0qGBLfWncKJYDnb6IxAPJRFvX1CAAnDwHOyDRJOgC2KzSBu0SZzL6m7I5BrTHdXns3jqFKoRXp79Co3cqNzgHJzekm33TG0PZ+kSThMQ2ozMNdZw5E6nsEnJLsmtnKYw0wd4tLRGRdvGeoFx2TOFxdN7Htgb3vNdro2CeFweys6Ps9iKlmt+pHnCV2nsyjhhP69OrWObGAkNi/idlmBbPpmnFpkT10VBxJUhXBSDmELQJWlInk0P76HiH/5QHxVB/7Gf/iCXa8hRxVaGUh1d5tB+r3LTGuzDNK6X2N749f3WlW7xN1iijXmeo0Wg5lU21diseTuONMzfdAIPOND0WLFzJtPRs9qmKYf2YbvT+tUJ190CPIpXaWy3U4Ju0mA7XoQsWJyk29jxpLSEXOj3vNT3/JYsSZr0afRByzVTjmwSsWLXE9mOZaEpTVFy2sW0jlxvYYmyICtLFkdKezZNlBxzWLE0EjYNkIrFiCWbOi0VixMki9abmFixADTrXVhs3bdWjYGWnMG48lixSaMvsPXoYmI/wAt50gkE9UriMO5k/NYsQVF2Li+Wa2H/usWIGRC1vrFiKFZs13Ru7zt34STHklKo/ssWKRi7qfBRFJbWKiKIVaRAPRL4xu9UDRkBHzMfKFtYtIv9Wc+SK5xQduCEZrFixRbOjgj/9k=</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRpYIAABXRUJQVlA4IIoIAAAQLQCdASqrAKsAPj0cjEOiIaGUqhUEIAPEtIBqo7i/iH1zdwzCHaZ9i0/Paz8JdBD+W/3nfwdY8w71x+p/831ZZwH6uyVmt+WDUL/XsrftvSmfxHgm36Pb9CNuQtVyNPeozveLI5SpfR6ksxUJiEgXedxRoXU43bn2lgWy/o5Q/V4kOiuJG68q+HN0CSuUleiSIY7VgQALBLgoInlB0DWp8IjH9cxzZwehb2BRxhlmEZycLJgT/9EHtlG6JTFf9UkIjLjNhFUqO5/Ypbbge9k4t7fLX3YIlfugTruZ82hsLemnpJUtjm2XqY68wAWpQKM8+zS0BXu0iu5w/ASWb9nyPOacCUlGhQX4e9LgOmm0egthMN8JwwF0GXh2pVgvIk3nzguZmC0EbCziILkqHsVzgvS2VQj8b6VoO/K+kFjVtW2zz8XfaOhzBiOSSkYpApX4p24nBFNvaAUisGnLIsP4Ccxw1GkkXH9EgHNO1yGxEAAA/v4kYBjo4DDtlPC7ghSx6iSaUPbt9tm/EAjmQTpX8XflYxbM08X/5fH/nAAyhS8hkGhb3da5cPW7jepj8qsL093aN9YJ2u1YlasrY8m8isBC1emH9V9fK4u3gj/WtXHLX6Q8mR8NOingvAA60/CM05esy6pdr2nfM8tb12BE0F4FZaGlPGcktvUOoz7APPXi6nbW35n30/NnGZpZQZtUi3qsii2RMqQzovyiLTLQDE4r+HkqeGL8MTvhI28GeonF+M1d9f41JeQKTGSHYatcug+Lq2NZlphUgm1GCQmWMLPxCnoPkukODw9c2Jp6kSvuPSLhCRCvDwG/FN6iDRd+f10SL7JMQwdKwsQAcrvooAdIQ29JLy5T2WJZQfSeYNNwdOxwQ9Iu3MF50pFfUr/W+MNWrz92bMBIOINRYnz1TQpSFu+NR6iZey0IiRACHiB8IvkVZzF98oEG3JvkfEgzj1JihKG1inF8synpCIgl0Cevg4UTt3hgPJLFo6PvroiYphx87axG6RsT6vOra8X1Vbdh8Nj2ltx9j7yAy2uRLJqFWUnXIUGP2PzQzTbsVskHpz37WAI74Ta/WF5dcUpUskjcnKyBAxDhNaorUG1VyWrCOCgwRMXc502cNRNKdC/AzfzkD7Cxov+Dw4BIpv37lE6ciK1AutNorzIgHuzfscaxxAj+2+0kEoB1eEIcRJRvcELwvilPzxyzGBOHSzACMmL45iUso5RTg1MiN/pkZxhecCRfevwlS0zJsDc0JyxOfV6QGH0HHbysATZAPywGP3MUx4UP0x9DbZh17KpZPkl5vQ4JgBMXJJJ6MZzs3Lhj4gx6ZZBayB6LIEacCIDAWS8lYzgOsvI/po+JQFja7XP/me95N19dC6a7l+D8d0vYX6U7LJuSqiZ9mIOYCrZv60/7Qj8zn7WsEK7Gms8GW3farcP6vw+383V9ywzmhl8vISQvstwEXQx17bHTHVbBLXcl7LGKW6sZ6PhUm4adltNBTs6/7F3PIgCVyToOXaV+g8Hhpfyhjw0UPaP4oxl8wwOfe8Fi+k4jxtkATTh+GQETw6iCBAVRS5nE96dkcQ/zzYGupaBGSLdN1D5i0YhEBLHZAwdm/69ZbYIQcQ/txlsx8o4plxBotPQR5WSrBfZMWq6OoN34dzy7D5JtmOCiasTjyDelKzeL88dth+G6zhdMibdFLf3ZpF+QpOM5o6nKo4mxqF4rZ9mHERhFcc+o1eex0L6s2nyQnArYB4lXTuPoe3Fze498f/rpUHF7JEO6zol0O294hpGSiFlZrztSqyQn1fx2fah+y8AEvi2hyeTcRbxMPMUos1G0v/fSbcSi+ZHOdVbyiss5MB/AaADiKgUKX5f+qz6JRp0txwhGCTktj13qKN5jOUjUkLKNr1MaKf/T5G0V4Vy4UXwAfdZ7uZZwvr2pgmb9NGaGjsVpRUZ377n5+5nfOHjn7es8c2ODqMsvo/5B7hGi5+9tFJmXzxhjpFTxe9nZr/IYY190/jKJi3Yv95SdkDbFfVd/vtF/4wIRXIPiWmWdDQbKRrW2z7nR60zZX/dqF95W3PMKVGvn2GWJUI+F05BTEjAJwcEMUdiR/1SXCSJRtA5FXieNECHLeJbLff8Xg9jz7yqsRRt+7vx1PNIJyu4BQhyRWkPO8p+fMFvahxvytoiGfzeBESawsGkeRE4vSgvzRKQpy2eYO6W4pyVlX8mvVpnuOJxn2wfvrJGsDSdxJ449i5OtVrb2U/KHrzteXIDLCWuzADgSVCSwJ/5BniZwfD1yIsoLloh8QIklE4iviNmVFoj0l+92yJFsgaZLCsKzRpzw4Qkz6RhXgAkeyIHywKPFDX3NeTF/6jRrW1nS1DtFYa8CL4wT86wlpNPpOTjOgV91+DGTTAz/OhjddR2/Dbhm56kIqfHn9iXMS/jlu7guv6Ippe1flhKpPMpWnAeGml/lEfVW1fbA5BIr5jDRYTOEEDA3B8PcgreQVqdx/OWAeU9/LQdhhqfDfexeMyG6tL7KwyVYoSX/DIH9l898fNcf+WIyOH4ZlPq9j3YjXoM0sXOEhF4r1dYjaprEHoKSD9H29Q4vyOLbBvNczEOWRXW7MLhBg7+VbMq5+cw5KWXDi3dc3Gt2SQiHt/3G09DOmBiCbvYuvkm3L97zIF8HoX5P2geagV/4NwEA+jrwsyOUsDHlL6XIFzFnN76LgkgxYHh6QsyxJlkIF0S70AZPBgy1duNWX4/Egcw6s3PFD51f4x1I3oVPGWGg3DJMZNKogRCBPAvCNVe+RrVsBkv3Bn1pVmVm3q58ZEVej07B5bgyKAx+3dOWICxvY9NrcZ2TFMxSHiog/BXJD2fz4miYJbcAAbcT5qn79xYXMj2SKlyRe+0JxEbSf1hS1vUruhCfqQX9EB2Z5/kW8AAAAA==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxANDQ4NEA8QDw0NDQ0NDw0PEBINDg4NFREWFhURExMYHyggGBolGxUTITEhJykrLi4uFx8zRDQsQzQuLisBCgoKDg0OFQ8PGCsdFR0tLSstKzcrKzcrKystLSsrKysrNysrKy0tLSsrKysrNystLSstKysrKysrKy0rKysrK//AABEIALcBEwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQECAwQIBwb/xABBEAABAwECCQoCCAUFAAAAAAAAAQIDBAUREhMWUVKRktHSBiEiMUFUVWGUoWJxBxQyM0NTgaIjcnOTsiRCRLHw/8QAFgEBAQEAAAAAAAAAAAAAAAAAAAEC/8QAGBEBAQEBAQAAAAAAAAAAAAAAABEBURL/2gAMAwEAAhEDEQA/APcQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYK2sip43SzSMiiZzue9yMan6qeY8q/pUXpRWezOn1uVvvFEv/btkD0a1bapaJGrU1MFMj1VGY+VkWEqdd2EqXkdlvZPidD6qHiOea10lVK6eZ7ppn3YUkjsN6p2JevZzrcnUhG1sjY0uaiOk/TBb88/yLB0xlvZPidD6qHiGW9k+J0PqoeI5Knhc9yuct6r/AO6jC6C4g68y3snxOh9VDxFMt7J8TofVQ8RyFiymLCuvst7J8TofVQ8RXLeyfE6H1UPEcg4sYsI6+y3snxOh9VDxFMt7J8TofVQ8RyDiyuLA6+y3snxOh9VDxDLeyfE6H1UPEchIwuRgHXeW9k+J0PqoeIZb2T4nQ+qh4jkZGFyMA63y3snxOh9VDxDLeyfE6H1UPEck4sriwOtct7J8TofVQ8Rmo+VdnVEjYYbQo5ZXrcyKOpie965mtRb1U5Lid2LrM2KRexFQsHY4Od+SH0o11n4MU6rW0qXJgyu/1EbfglX7Xydf2Jeh7VyX5X0VrMvppkxiJe+mkujqI/5mdqfEl6eZBPAAAAAAAAAAAAAAMc8mAx7+vBa512e5Lzyqr5cVC0UNTHaMf1uXAWWg+qtRIFciq5jXqi3o1ea9evrLB6vI9Gpe5UamdVRE1nwnKb6TKemwoqREqpkvTGIq/VmL/Mn2/k3m80PhauSe1FifUSPnkffgMc7Biat6/ZjS5qLcnXdeY05OVDkRWQNciqqIuG3rRUTSzqhfKVE21bFTXyY2pmdIqXq1n2Y4/JjE5k+fWvaqmgjEzklaNLNTYOMhY3DvVt6qt+Dcq9TviQj1rFT8OLm8n8RYVhmRVS5L0TP2qaL6XyN59oL+VFqk4jBJaS/kw6pOMFR8tP5GpJAST7QX8qHVJxGCSrv/AAotT+Igi3xGFWEm6ZF/Dj/fxFq4K/hs/dvBUdglyMN7AboN/dvKoxuin7t4VoYAwCRRjdFvvvKq1qrfgpevz3kiVG4BcjCQRjdFvvvK4DdFvvvLBoJGXJGb2C3Qb77xcmi333iDTSMuxZt82i333i9NFvvvEGpiy9l7flmNi9NFvvvGF8LffeBTmLoZVje2Rj3MkYuEyRjlY9js7XJzovmhTC+FvvvKumVURFRLk5k6+b3A9N5JfS/NBgw2g1amLmRKmNGtqGJ8beZsiefMvN/uU9dsW36SvjbLTVEczXcyI11z0dderXMXpNdd2Kl5ylh/C333lGSq1yPaiNe1UVr23te1U50VHIt6EhXYIPBeTHL6vc+nhqLRxNOqfxKh9Oyoe1EYqpf0cJyqqIl639d/Oen8hbfdXLWsWdKqKlmibFVpF9XdKx8aOVHM+F2El9yX3fqqK+rABAAAAAAYK77mX+lJ/ipzIxeZPkh07VNvje29EwmObeq3JeqXc54baNjwx0UULaGoZaUeLbNUNlSanlVEuerURy3IvMqJcl2fPrNTUZTy1SRRqyOBWXLguWaRj7sJetEjW5f1NeaprOrBiRPKoku7fg811ktT08rYY2YqRFa1UVMB2dfIxS0cy9UUmw7cbudZQNTPVO+02N3XdfO912thoSPm/Li/uO4D6CazaheqGTZU1JLIql/Al2VJRBOdLoR/3HcJZU4XNgIjkuS/C6Fzu1EuvvTz5vkTD7Fq1/48uyYn2FV92l2SVUE5ZNFm2vCY1w9Fu0u4nHWBWd2l2TG7k9W91l2SCG6ei3aXcV6Wi3aXcS+Tld3WXZTeE5N13dJdSbwqJTDzN2l3FyYWZu0u4l8mq7ukupN5VvJmu7pLqTeBEXv0W7S7ivSzN2l3EwnJiv7pNqTeVyYr+6S6k3gQ3SzN2l3FelmbtLuJjJav7pLqTeVTkvaHdJtSbwIbpZm7S7h0szdpdxNZMWh3ObU3eMl7Q7nNqbvKIXp5m7S7h08zdpdxNZL1/c5tSbxkvaHc5tSbwIS9+Zm0vCUVX5mbS8JN5LV/c5tTd4yWtDuc2pu8gg1V+Zm27hKdPMzaXhJxeS1odzm1N3lMlbQ7nNqbvAg735mbTuEtVX5mbS7idyVtDuc2pu8ovJO0O5zam7wMdN92zPgN6ufsPYPoM+5r/wCtB/g4+AsDk/LHNCtXQ1MtO1P4sMSoyR3QVERHYSXdK7tTqPW/o3sz6utfI2mfSU080K09PLKk0yMZEiOc9Uc669yu5r1Gj7QAGVAAAAAFrmIvWiL80vLcQzQbsoZABjxDNBuygxLNBuyhkAGPEM0G7KDEM0G7KGQAY8QzQbsoMQzQbsoZABjxDNBuygxLNBuyhkAGPEs0W7KFcS3RbqQvAFmJbot1IMU3RbqQvAFmKbot1IMU3RbqQvAFmKbopqQYpuimpC8AWYpuimpBim6KakLwBZim6KakGKbopqQvAFmKbopqQYpuimpC8AWYpuimpBim6KakLwBZim6KakGKbopqQvAFmKbopqQqjETqRE+SXFwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhUSEhIRFRIXFxUWEhIVGBkSExcVFRgXFhgSGRUYHSghGBolHRYVITIhJykrLi4vFx8zODMtNygtLisBCgoKDg0OFRAQGysdHx0rKy03LS0tKy0tLSsrLS0tLS0tLS0tKy0tKy0tKy0tKy0rKy0tNzctLS0tLS0tKysvLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAwECBAUGBwj/xABJEAACAQICBQkEBQgIBwEAAAAAAQIDEQQhBRIxQVEGBxMyYXGBkbEicqHBFEJSstEzVGKCkpPS8BYjQ1NVc+HxFSRFhJSzwhf/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABkRAQEAAwEAAAAAAAAAAAAAAAABESFBAv/aAAwDAQACEQMRAD8A9xAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABH08b6utHW+zdX8iQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEWJxEKUXOpOMILOUpNRilxbeSAlB5vyk54MHQvDCxliqn2k+joJ/5jV5fqprtR5Zyk5fY/H3jUrOFJ/wBjRvThbhJp60+5trsA9v5S84eAwN4yq9LVX9jRtUnfhJ31YeLR5Ryo50MXjk6dNfRqN72pzl0slmrSqK1l2JLvZwCViShvA3EUtbdud9rvZO9+J0eh6+ItelVkturTjVcaktXrOEE80s9/1ZcDlpTtLy9EZdKMJdaEX3pP1RLLwj0HCaex8HZzxfDOE6ivttrOLTNtg+Wde6i6sJNpNRlGKk072dlZ2dnn2HB4Sq001OrF8Y1JwfDbGSNvQrN6utOpNRVoKc5Ttla/tN52yvt2iZXTvaHK2r9aFN91182Z1LlUntpeUvlY4WlWMqFYqO5hylpPbGovBP5k8eUGHe2bXfF/JHl2kuU2Hw8+jqzlGVk8oTkrPtinnkWx5T4WWyvBe9eH3kgPWYaYw7/tqfjJR9TKpV4T6soy7mn6HjL0xQn1K1KXdOL+ZgYuqnmrPtA95B851dL4in+Tr14e7UnH0ZGuXWkqfVxlX9bVqffiwPpAHz3R52tJw2zoT9+kv/hxNlh+e3FR/KYXDz92U6XrrAe5A8jwvPjTf5XBVF/l1Y1PvKJtsJzzaOn14Yql71OMv/XOQHowOQwnObompsxcY/5kKlL78UbfCcqcBW/J4zCy7qsL+VwNwCynVjLOMk1xTT9C8AAAAAA8e5T88zTlTwNDY2unrbMsrxpRea7W13Hl2m9O4nGy18TXqVXe6UnaEfdpq0Y+CMLEdeXvS9SMCoKFQLqUHKSitraS8SSnTlFuMussn3kdObjJSW1NNeBfTk223m3m32veUZmIl7b7o/dRPQqGFi37b7o/diYmNxDSUI31pZdtvxzS8SDpMFjJ1JdHQpyrTW2zUYRfbOWSOhhgMfCHSdBQnBdbUxEVJcV7ajFvsvc5bkRon6RiI0Nd06KzrTTtrW2Qv2t7O9s6fljo2pQlqu7ha1P7KitiXBdgGVg8brLOM4PfGSs/Bq6l3pszoVzQ8k8BFUp1qmUd27YXYfSMZ31Xkm0BzHOJO+Ij7i+RyydjoOWtTWrJ/onPoou6WX2pebEarWasnxsr+dik2tya43d/kWgZH02p9qX7Ul8E7Ffps97/AJ8bmOrb79neX06Tle27N5pK3HNkXCX6V3/D8B9J7/L/AFI6mHnHbF71laSunZ5rtdiNoaqYZKxC7Pjf0K9Mv5svWxiF9SjKPWjKPemvUDJ11/tn6FXZ/wCphBMDPoycM4Nx7YvV+KNnhuUmOpdTG4yPZ09Vx/ZcrfA1Mdi7l6FWwOswnORpam1bGzl+jOFKd+y7hf4m4w/PFpSHXjhpr9KnKL84zXoedqRdOs2rNytwvcD23/8AXZ/msf23+BU8xAGlxHXl7z9SMkxHWl7z9SMAAAKklHeRklECTGv233R+7ExsNOPTpy2KLt32lb428iXGP23+r91GuxuTjLwf8+YHV08XGlhsO6btOUsRKpbbdShGN/1YrzZvcDymniaf0WvTlUi+pOPXpy3Szya4rgcBorEXmqbfWfs+87ZeJ6DWpxweFf8AfVFq33qL2pAY2n4YmNKlCNOUcNqRdOazjUus6mssrt3y2rYzS6PnKDd9/wAv9z0Lmy05FxeDrpSpSzipZ6rfA5fnCqYeGMnSw2cKa1ZyWzpHnKK4qOS79ZbgOP5SVNaon2GpNvXhrz1r7ErZ2z37n2EFbDa23bx1kvgqaA14NjKhvvHu1F66yLehW+K8svhUAwCSlVcVJK3tJp3vlfK6z27TJhhoq97Phm015XLKmGvscUuD136QAo8W7Wstsm9v1pKdtuWaIas9ZuW95vv3mQsIvazy+rnn2Xul2FksK92q8s/bgs+5yuJJFtrHNnpTTM8RFRkkkpa0bbla2rszzbd+0xqeCb3xW2+cXbgsnmWSwk90ZSz+rGUsuOStYl8y2W8J6slk6tp13FWVvFXzyz+Bf0snT1bLVi027Ryu8t19vaUWEna+q+6zv5WI3SaV3Zd7Sfk8yoyIu0U3wXobnSWj44SUKUtWeIcIzra1pQpOolKNFLfNRabfFmljL2U+xGUqqlJ1JSvJyTd9+a+QHVPk7SpWp1KH9bJKU6jlOO2z1YQg1FLvTe3ZsOZ0rh405yUG9W7tfO3ZfedvT5UxxijTqx/5iKapVFa07r8nO+z3ti38Tj9J6PrUnJVoShNdaMlZpgbAFdUAaPEdaXvP1IyTE9eXvS9SMAVKACpJRIyShvAYv8o77PZv+yimJw1OWUZq2/Wb+USmN678PuothRcldavDNxXDj3ijUVaTj2o2j5Q1pRjGq3PVVot9a3a9/eXzwkuEdl+tB5eDMfolwAyaemK2ynen+kn7fg93eKcrIiirFbgSqe0r0jIk/wCfBDWAkc2WOTKXKXAklWTWUUmtrV38GR662Wz8vl2FGy+lDWkoq120lfi3bbwzAvc6f2ZL9Zfwls3G+V7drRf9Fle1k+Ga+0oXztZ6zsW1aLik5JNO9lt6ra2rtRNClNx3uS7kmvjJFJxjubb7Vb5stsCi2y4L4MvjUa2OS7svQtAFs807t53MSd427Vf5W7zMsY9fD3zWQHScm9V60/0X5tWsdTyr5UUq+i4UaiUsZrRhGf1lSg9Zyk/BR/W7GeaYSU6d3GUk3k7Oy8VvMqU045p6++bbd/iBvwXWAGhxN9eTtlrO74ZuxGSYlvWmr5OTbXam7erIiipUoCCehhXUjOSaShquV+DuvkUoPb3EcZNJpPJ7fAkobwLMY/bfh6Ito0da/Z5vsXb/AKlcW/afh6IvwGIhCXtw14XTaUtSSa2SjLc1nus80BJpDBxhUnGm5OMbZzVpcGmrIxE7Zmw0xpCFacpU4SjrO85TkpTk+3VSSXYjXXA2GLoWpuScW4VXRqJQUGqiTl7LXWjlJXy2bM0R04ScJVFGnqxtf2c/qx9ZR33z7GQ1sVOaipzlJRVoqTbsuCv4eRFrbr+Hds9WTCl/X5IoE/58hcqKlBcXAqVTazWTWaexp8S24uBL00vtS83xT9Un4Fsqjdk22le3Zd3ZZcXAqBcXAoVKXFwFy+Ci/tWeyyTb3O3HO/kRov19m62y1klnfYu0Ck0r5X8cn4lGVk75vbvLWB0wLNYqBvcdzUaUU56tKlOOtLVaqwV1d2dpWtkcVicDUp1JUnG9SEnCUYtTtKLaa9m980z69PJMRzTV1iquIhiaLU6k6kYSjKLWvJy1W1fja9gPGKtKUHaa1ZLbGVoy49V5kakuJ6bp7mn0nia8qq+iK6Ss6snsio7ej7CCjzI6QdnKtg47LrWqS2Pj0aA4R6Nr2v8AR8RZ5p9FUs096erZlsKUot60ZR95OPqfWujsN0VKnTvfUhCF9l9WKV/gfPXKGpOrpHE0sRUqTjHE1tWnUnJxjHXlq6sW7RWq0lbcBwFWo22ymszqeXeiaNB0uggoJxblZuV3lxbORp3vmwJdZldY6nmu0dSxWkqFKtCFSm+kc6c/ajK1ObV4vbZ2fgfQH9A9F/4fg/3UPwA+V7i59VR5C6LX/T8H+5g/VF/9C9Gf4fgf/HpfwgfKVxrdp9Xx5HaNWzR+BX/b0v4SalyYwMHeOCwkXxVGmn8IgfJPSLivMdLFfWXmfXn/AALC/m2H/dQ/AvhonDx2UKC7qcV8gPj/AKaP2l5l8ZX2H2FDAUlspU13RivkcRyp5qcJj68sS6uIpVJKKap6nR3irJ6soPgt4Hzqi5J9p67W5iJzk5vSMbvhhrLLLZ0x2fJDm0wuja/0inVr1KmpKH9Y4atpWvlGK4AfOUaEnshJ9ybJVgK39zW/Yn+B9fgD5D/4TiPzbEfuqn8JiJX2LPgfY54RX5msdTqyq0quFmlNyhFynCclrayXUaTt227QPLpKzs8nvTyfkXU46zUUrttJJZtt5JHdaY5p9K1686qo0UpSvZ1o33G30LzM42NSlUq1sLBRlCcoxc6klqtSceqk3lbbYo4tcjdI/mOK/dS/Az9E83ekK9anSnhK1KnKSVSrJKMYQ+tK/G17Le7H00CDRf0PwP5tS8gb0AAAAAAAx6+CpVM506cnxlFS9UZAA0mM5I6PrPWqYPDSk9r6OKb3bUiLDch9GU5a8cDhVLj0cXty3o6AAYmE0ZQou9KjSpvZeEIwduGSMsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhMSExMVFRUXGBgXGBgVFxYYFRgXFxcXFxYVFhgYHSggGR0lHRYaITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0gHiYuLS0rLS0tLS0tLS4tKy0tKy0tLS0tLS0tLS0tLSstKysrLS0tLS0rLS0tLS0tLSstLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAABAUGBwgDAgH/xABUEAACAAQCBQcGBwoMBQUAAAABAgADBBESIQUGMUFRBxMiYXGBkTJyobHB0SMzQlJikrIIFBUkVHOTosLhFhclNDVTgoOzw9LwQ0Rj0/F0dZSjtP/EABkBAQEAAwEAAAAAAAAAAAAAAAABAgMEBf/EAB4RAQACAgIDAQAAAAAAAAAAAAABAgMRBEESITEy/9oADAMBAAIRAxEAPwC8YIIIAggggCCCCAI+Ex5nzVRWdjZVBYk7gBcnwjOvKVyjzK12lSGaXTC4sCQ036Uzq4L457Auqt15oJb82ahWe9rSw0zMZkXQEXHC8cjr9RfOf9G/uiidBOstHfAGODAL/J6IYsvBr74TLrIDslt4iCL/ABr9RfPf9G/ujomvdCf+MR2y5v8ApjPn4f8A+m3iIBpsEgFWF8toim2o5E5XVXQhlYAgjMEHYRHSK+5LdKl2nyMlQBXRBey3OFwt9xNjbiTxiwYiiPjG2ZyEfYhfKVpYyklSsyswsZgBKlkXD0MQzAOLPsgHiZrdRDbUJ3Xb1AxyOu1D/X+Euaf2YoWo0wquy4WyJFhY2z4x4GnV+Y/o98E2vv8AhzQf1x/RTv8ARHWl1zoZjYFqUDZZPiTbs8sDbaKAOsC7cD+iOulKhJsmU4SxGRO91dwCG7N3XnAaYBgjPnJvylvRnmKktMp9gO15We1Qdq/R8OBv+ROV1V1N1YBlI2EEXB8DBXSCCCAIIIIAggggCCCCAIIIIAggggCCCCAZddJuHR9Y3Cnm/YaMkTzGsOUI20ZW/mJn2TGTZ52wEx0b8U3afsiIWlWUuBEy0Weg3afUIadVJspZ0wTAoci0t5ljLRg3SLqQcQw7rG5sN8VDTJr2Jt4AbSeEPE/RrSkWZMN5jEG25RuHbHnmZD1QMhgotsbZjxEHCSBYHbnbbDzrQOgt+qAn/JVUWrsPz5TjvBVv2TFxRRHJ1Pw6RpussD/alP7bRe8QgRV/KxP/ABiSnCXf6zkfsxaEU9yoTb11vmog9bftQVVbUbTZk5pZs6sxAOxhfyYbKivZd3UQdoPCJDq+bzJp6z6zDdUUspKoGq+LOLEqnpWtle2w/uioZp1ezDDs4xLv+TXzUP6whHrsJFpOFUE7MkycPN81YBMhse4Ym4B32zhZO/mY8xfZARYHpt5x9ZjWOo83Fo6ibjTyvQiiMmDy285vWY1RyavfRdF+aA8CR7IipNBBBAEEEEAQQQQBBBBAEEcK6slyZbTZrhEQXZmNgBFA66cp9RVzeZp3aRTlsIwHDNcXtiZhmPNHfeAvqo0pIQ4XnSkPBnUHwJjj+HaX8pkfpZfvjPFHNlSpHOOW5xmFztUJY2Xje+d99zHk6wSfnn6p90BosabpvymR+lT3x3k10p8lmIx+iyn1GM1nTsr5/oPuhTorS0szU6bixveXk4tmCpOV72gi8OUX+jK78w/qjJs/fGma3SzVeg6uY9sYkzka2wsqnO264sbdcZmnwVLNFN0W7f2RHXVfV6TM556hwgJIQHbtzbshJod+i3avpRY9V2lChwJm3oA4mKiTSNWaBDcTh32I8IR6yaHl83+LzlYf1ZOzzCfVEVNZPtixZcQGw+IFo602mWuA+/ftHcd/ZA0l+qEwrWUZOR52UD3sFPrjRMZq0HO/GKdr/wDGlHu5xTGlYhAikOUSdfSE/qwDwlpF3xQuvMy9fUn6dvAAeyBJj1V1fmvid5gkoSd4Exuz5o64X1epEhzfnR4j25mI3XaZwnCvSPVn/vthGNLT9t17L38SFtFD5rDqakqnLSmDMmZAIuV32G8iElYfxX+wvsjzQ6XxEK+ROw/JPYY66ZPwLdw/WEBE18tvOPrMam5L/wCiqP8ANn7bRleT5Z7T6401qrX/AHtoOROABKysgdmJnIW/VdhEVMZ1UieU6r5zAeuE7aYpxtqJI/vE98ULp7SqGbjd3ZnAZi4Fy3yrYdijYBwhvGmJXzj4GCNDnT9J+UyP0sv3x6l6bpmNlqJJPATEJ9cZ4/Dcn5x+qY7Cokz5UwDFjGEowFsLZ3uDtuMrdsDbSEEZ01M5RJ1DNWXMZplMQpMsm5S4zMonZY36N7euL/0RpSTUylnSHEyW2wjjvBG0EcDBSyCCCArvl1nYdG2+dOljwDt+zGeKQ/CJ5wi/fugG/EJI41C/4U2M/wBIfhF7YCSaW/mn9lfZEaTSFgLjOJLXm9IfMHshJq9oanm07s9y+Jg5zHMIMOGbwe92GG/yTwioa5VbfILck2AG0mHegpWlTkDnpkG4GwZbBHPVvR5SezCzqrFQ65jbtHAHjDjpL+dSz1+yAtPUluc0VpGV9GafryLD0pGfqgZxfvJIcYrZJ2NLT/MU/aihqtLEjhlEDroudhRzwVT+r+6Our1AZzi+ZY3z2cbnsG7jeEFEbo44p6iwh81TS4RwbWjTyLTWm4dHGpFr6lM5VKsgZuDxuIhuuWjZQImysgxs4GwHc44GLJ1h0PL+95c1W6TAX/dBrTq7SStGu4ILlUANxm5K7PTHBgtaLxp2561nHO1WarVJugO1XU+DC/pHpjWMZN0DLs2LcZhA7mA9hjWUeq8sRnLlIqCtTVkbeccd1zeNGxmzlOW9RWdUyYf1s/RAMuqGhRPmHnPIUAvxZj5KdgixPwaGTAmFF2WA9gjzyZ6tyKimmu0zCwmZ24FVKn1+EPOreg1xTAzk4CQOuxjzOVa85NdPR40Uim++1Xa0aF5snZxuPtW3Eeq8IKmpL0yk7SyA9ocX9USvXOTfGSdlx6CIhU02kJ1uW7s29kdfFvNqe2jl0it/RppM2740ZpM83oGmX5ySB6n9kZ10eMxGiNfeho2il9Uv9WSR7Y6XIpzT0svORVNjhyO69zthpnVLJcOtmXJh7RxEPNWfxtPNEJNbqZmbGBYCwLbuzr7IBo/Cu3KH/U83RyduL2R20loOkWjmOpPRzlzgcQmTCR8BYXC26WeVwOrPlqh8U3neyAYaxumvm+pmHsi+uQGbehnrwqD6ZUr3RQVb5Y7D9t4vL7nt/wAXq14TEPilv2YC2YIIIiqu+6D/AJjT/wDqB/hTYoClPwi9saB+6BX8QknhUL/hTYz5IPwiecPXBEnqM6Y/m/ZHfQOpEydTiZj5vHuJtdRsuN/fHOiIMpL5jCI+Vem8BwLdm4C+UUP+i9SHlG4nAHiDn7j2GGnT2j50qfLMwAjELOvkn3HqhqGnpu9cuqx9TXhbS6XEzfnwgLG5HZtqyavGSx+q6e8xVGtlFzdXUy/mzpq9wdgIsvklmfygOuVMH2T7IYeVHRDLpCoIBszBx/bUMfSTEEJ0Zkw7CPSD7YVUNSaeYb/Fk37OrqjnKklCCRYXPpEPc2lUWAdXBVSSAQASLlTfeNl4loi0allW01nyhYWidaaOZT4J8w5DIBCW6vJFj3mK81k0009+Zkk4Aeit723c5MtkMt0OWjtT3moJqUyOp4OFvmQbriG8b456U0XMpwqtKSSGuQqYdxsb4Sc89/GNGPBjpbcfW7JnyWjU/DdQSQploNgKjtzFzGpYzjq7ozn50iXLxNNM0FhYYBKUqS5O62fo79HR0NAjPGv8q9ZVrxmP6f8AzGh4o3X/AEdhrqozCUxATJd1J5y+EWBGzPFmeEBCdWdNzKV+bJIB6LC9sajYQfnCLV0brJSyZOOXN6bDMOpxX7x6ogGjdGNUMZSylm5FirYRkNpuSOMKp+pExcR+8pqhbk3mOUsu2wvYjsjRkwUvbc+pbsee9K+Me4M2s2mDUzCks3uekeHhkOyGjS62VFG4N6Ft7YfqekW6qMKAkC9rKoJ25bhDVpamvNZFIYLiFxsPSGY6iBeNtKRSPGGu97XnysadD0xaYijeQPE2i/OV58KUssfTPgEA9cVpqLojHV04sfjE3cGBPoEWHyxv8JTD6LnxK+6MmCrJdFNnVdpSYiFXM5KMtrHdD7pbUybNADzQSPqjqVRsHXthrqNJ80PKt2G2zeYbm1mmnyQxHEm32mEUOh5P5gluMZNhdVubYuzZcw3atIVlsDkQ5B7RlHWn1jYkCYWW+w3NvEEj0wuuMzvOZ6zxgiD1Z6fj9t4vH7nn4qs8+V9l4oyoPSHZ62aL1+57X4GrP05f2W98FW3BBBEVXXLtJxaMv82dLPiHX9qM4IemvnD1iNP8scjFomo+iZbf/Yg9sZgmZGCH4VOCnBG3MDtuRCjV/Qpmm1sW832ec3sENdQ3wS9Uz9o++JtqVLbGq7nsPQLRz8nJNK+nTxccWt76K21ckYcEyUgNvKWwI6wRnEA05QGmnEBr26QYfKXr+kPZFsaX1cmCplysd8ZAuL2sdphm5T9U1pZUl8eIkuO4KDHNxcl/PU/G/k0p4bj698kdTi0hTH5wmA9olOT6ouvTOgKaqC8/KWZhvYm4YX22ZSDuiiuR1CK+jvv5w+NPMjREei4EOn8mWjWv8CwvwmzPaxjh/FZosAXlzMuNRPH7cVvyqa0zpldUU5nNKlU4tLVAbO5VG6djtOI5nIBchmb13MqXPlOc+8mA0YNQ9DpkVHDpVM32zI5nVfQKbRTDzqg/tTIznzp+n9cX9ceTc7Cew7e3r7oaGn9EVOhqQsaedQyi2TFZsrEQNxOK9uqHA630A/52m/Sp74yde/XBzbfNPhFGsP4Y6P8Ayyn/AEqe+G7TekND1iqtRU0zhTdTz6owvtsysCL8L7ozDgPzT4R8sRuIgNBDVzV8nKplA/R0g4P+NChdUtEt5NY57K5m9bmM7qeuw3ncI9CZ53ecP74DRK8m+jWHRnTv7M8H1gx3peSzR6j/AIrZ3zmbe0qBGcMfaOs2I8Rs74cdF1rSyXE15ToMUvANrgiwJvlxvn37DBqDQurdLSkmRKCEixYlma3C7EkDsivOWZ7TpF9glE/rH3RPtStLtV0NPUPbG69K2QxKxUkDdcre0V7y1D4aSP8ApftmAp2Uj1E4KMyzYVB2X3k9Sj2xYlBqvJlrbAJj2zdwD4A5AQycl+g/vmoK4sJVZpB68dj6DE9OgJsuqEkzbggEHqjh5d7xPjHx28SlJiZn6gGsOrpQE4FAPzfJPURu7YatDVBwsjbU2E7cJ2eGyLF13pCt5d72FyeJispXRaeeCnxuxjPiXmYmJTl46xq0dmFz0h5q+q/tjQPIDKtSVDcZoHgg98Z+I6f1R4KI0hyGSraOJ+dOY+CoPZHY4lhwQQRFMGv1LzmjqxP+i7d6DGPsxk6cmcbJr5HOSpkv56Mv1lI9sZKrqMqSCMxAeJEvHLdeJv3kAw/6oaZwsqvYMpF77P3dsNOiZBZwg8psIAuBc3wjMwtn6NGIhhZlJBINiCDY5jsjDJjjJXxlniyWxz5QtzTM2Q8pann0lsouAHBJ6lF7k9kVVrVp2bWzBLYnCBhF9qpe7M3WfdHsaFYAY2qgDusBfsOG8c3pVl3RZZTiGvjJ+kTneNeHj1pO97lnlz2vHj8hJeTAfynTW2Dnf8CZF/RR3JjQn8JSCCHCy3mMUuQuJCuFuBu1ovGN7SyzylP/ACpXE7pp8Aqxw1b0QJpZ5nkqQCB8p7Xw+aAR237YU8ocrFpPSA343IHGwU2hx1ISUxHOOQgmAtY54WscXr+rGrPaa0mYbMNYm/s+S9Erhwgy0+iFFuw2iJaz6HVLsoCspFwuyx2Ov+9l4nUnR8o1QQMTKxWxX2jcQYbeUilp1ZlkNiAQITe/TJOQPVf1x5+G9ovGpd2WlZr7VzQ/GA22q1xuuAQY5TK7CthtHqjvTnNTx5w9xNgfRCBQBMDspKg5j3R6zzHWVXtcYsh2Qv5wGTMbiV8AYRVtQs0BUXpXvcZC2eVvDw64USspDA8R64DzRU2NwuwDb3bT6QBE+0VolVQEFJYOYFrsetohuhpd5pXjceNmHov4RbWl9F033pKnSWu5sCL7DbpAjiI8/l2t5a6dvGrXW+0V0zq+k1TYKJliVdcg3Uw3/vivcJBIta27hnYr3H1xcbUlP97pm6zbktc5AAf78IqmoUF5zDYAx/SP0fQIz4d5mJiemPKpETEw0RyOvfRFKeucPComj2RGOWhfhpHXLI/W/fEl5Gf6Hpe2f/8ApnQy8sFGXm0liFDB0xMbIDdSMTbsrnuMdjlVDobSsyjqcaGxxFl4HFk6E9e3vi2NW9Jypx++GnLiHyHOFh1EEgnuit3plZijKJmeGwzDZ2GE+qO0zV8p0fxyUfmEXHDLGt405sFcmpn624c1se4g/wDKDrIjMSpW+wBM/TvPUIgJQrJmE+UwJPVfICHU6MVWNwxYZEzDdgezYvhHPTlIyIl7fCBWFiD0Sd9thy2RljxxjjUJly2yT76RXB027TGnuSSnwaLkfSLt4uw9QjPNFQ3bvjT+p9LzVFTJwlqfrDF7Y2NR4ggggoiD6d5M6aomNNWZMlFsyqBCl95AIuL8LxOIICqp/IypIIrGFt/NAns8uOn8T4/LX7pK/wCqLRggIQmok8Lh/CtWB9FZI3W+YTCGdyTSpjF5tbVzGO0kybm2Queb4CLFgiREQszMmTVfVeRQoyScRLG7O5BdrbASABYcAN5h7ggiozFyho40tWsgJKzMZsCbLhW5a2wZ2J64ZtH1LSn5yWMSb12lRtKMBmV4EZiLt5ROT81M01FK7SpkxSs4AMVmLYDPCRmQACMwbDeM63m8mmkEPRlE23i4hMRMakide4Of8YFEZJUymR7WKq64b99j6IhGk9ItOO9Jfs34b5s3XsiQzNSNLfk8w9gB9NoRTdRNJb6Oce4H2xqpgx0ndYbLZr2jUyjsqaMYJyUCwA3C1gBDxL0hTYbNKxcM7ADh19Z3x0/gRpL8hqPqD3x3o9Ta9Td9G1EwW2EFc7jO4Pd3xtlrgklaRpVN1kWPaYSaRrUdSFFibd4HHrHGHybqfVkELoqpBN7Ekm3A2hH/AAG0l+QVH1V/1QidkxoxyZhyIyZcuGIDMC+5huiQaG1oSW4M5Tl14Se0HI9xgl6gaSP/ACU4doX/AFQqlcnmlPyZx2lffGF8db/qGVMlqfkq1m15NVL5mnkhE3te5Pa9gFHULk+iIkUYqyIC4W8yYwBtlYYjwUXtEtXk10k3lSj3kH2iHvQvJHUFgZs5panJ1VBiZL5qG5y2dt4I6jFpStI1WNJa02ncrC5IUw6IpB+dPjPmn2xI9NaJlVUppM0XVuGTKRsZTuIjro2iSTKSVKQIiAKqjcPaevfCmMkV4eSaQCGWrqlINxnIyI2W+Chf/AmoGS6Wq7fSWST13OEXiaQQmNiuKnksLszvXzGZsyWlSySeJzhMvI8pbE9YzcLSlFv1jFoQQEI0TyZUkpldnmzSM8LFQhPWFW5HVeJsqgCwFgNgGyPsEAQQQQBBEM5QtbptAZAloj84HvjxZYcFrWP0jET/AI0aht0tP7DEfb9kBb8EUzO5QK5vInSx5qLfwa8NlTr1pP8AKiOyXIH+XAXzBGdJ+vGkjtq5ncEHqWEUzXGvO2sn90wj1QGmIIy7M1lrDtq6k/383/VHWi1urpXkVc8dRcuPB7iA07BFB0HKxpBLB2lTfPlgHxllR6Ikmj+WW+U6jPbKe/6rAeuAtiCIZo/lNoJlsRmyjwmSm9cvEPTEq0fXyp6c5KdXW9rqbi43HgYBTBBBAEEEEAQQi515hPNkKikqWIxMxXJgouAADlc3zBy2E0zrtr1Wg1GjzMlnDMKtPkqyM6WzlFWvhIJsWU54bcSQtTRmuVFPqHpZU9TNQ2tsDkDpc0xye2d7cDD/ABk2kpmZlVMjtuMsNs8V91tt4s3U/lRaS3MVjNOlA2WeB8IBuLr8tevyuOImHel12uWCOFFVy5qLMlOrowurKQQR1ER3ggggggCCCCAIIIIAggggKq5cDnR9k7/KisVmRZnLqbfef99/lRVOOKhUCI9hzxhGsyPavFCrBfbHwUy8BHxXj2GiD0KdPmjwhx0dOkorB6ZJpOwszKRlkBh684bg8eg8NLsuqp6uRhlJKAuLJjzvnmWY3jwhhOHj6rwQoLRb3JaPxI9c1/Uo9kU4pi5uS8fiK9bzPXb2QVLYIIIgIISaV53mZhkWM0KTLDGylrdEMbbCYY9S9aTViZKnyzIq5JtNlNcEg7JqA5lDs32I2kWJB3oGEtmktkS8x1J2Oru0w4etSxBG3K+wiI5rpqBJrLzJdpU/bi+S5+mBsP0h3gxL58lXGFgCOviNhHAjjCU45XGZL7zNUdX9YOrysvlE2gM76XoZ9KGppkvmze7G2bjdncgrluy8IapFK0x1RFLMxsAMySctgjS+mND09bKCzVDqRdWW1xfYyN/sHrhi1O1ClUUx5pYTHucBIthXs+du/wDJhEaXeyjk71YNBS4GN5kxuccbgxAFhxNgL9nVEpggggggggCCCCAIIIIAggggKm5ezlRds71SoqLFFucvo6FF5071S4p3FFR2xx7SZCUtH0PFDorx6DwkDx7DwCsNH0NCUPHrHAKg8ew8JBMj2HgFYeLu5L/6PlHi0z/EYeyKIWZF88l/9GU/WZv+NMiSJVBGdtYNa6hmJSoqhN52bjtOKSsCuwVUVWGGwAGzjtiXcjWn6mdUT5U2a7pzXOKJjtMIOMAdJiSMmtbLZGNZ3HzTKY0tuEdZo1HdZtgs5AQkwAY1B2r1qbZqfQQCFkfCYqE1NVXOBwFmcPkuB8pDvHEbRv3EqobtIaQpbYZ06SBt6cxBYjYRc5EcRnDJP1loU2aRIA3KyTf1ijMfGAf6QYZs1B5NkfsZy+MD6obtcnfC2IYvKBo6WCEeY9zckS5mJjxJcC5yA7ABuhNO5Uab5Emc3bgUfaMNCeQRWlRyq22U6jreb7MIhqqeVx9zUq95J+37IuhcEEUvT8pM+fiEuoXo2vgRcr3tmV6jHLSGtdSgDTJtRZhcYDbENlxmBaGhdscplSi5F1HawEZ9l62c5Mwuz4Sci7k57g2IdEnZfMdcKtIVSmXMULa6sMzfaDlaLoX7BFc8k+vyVcsUc4hamUuEcJ0tMg63+WABiHeMr2saMQQQQQFUcvg+Do/Om+pIpgiLs5dUvLpPPmfZWKdaVFQjaPN4UPKjmyRR0Dx7EyEmOPoeAWCZHoTISB4+44BWJkehMhGHj1zkAtEyNC8mK20ZS9jnxmufbGbw8aU5OB/JlJ+bv4kmJIzrpT46bs+MnfNv5bWv0PC5PVaJXyaT2lLpGYhwumj5rKwsSrLmD5IzBG++zaYjGlkvUTQE+XMyxfTY4rgDiDEj1BPwGlcs/wAHVOd+q9rW69sVSOdrXUOvSqasvbM/fRVbnK/NIoy7TDTNrHfy3Z/PYt6zCNJpCECwuc7Xu1rEA7rA598fA8ENk7TM0MwULYEjyTuNs844tpmec8Vh1KLeqPFRiJYY0ALMbYhfadvbHhrhcHOrhOZGe3LgOqIro9bUH5b58DYZ9Yjnacw2zGv1se++z/xHxAbAc4LDZYP6OjHVKdtzTT5qOfaIgQQ80GjHeQZwVSqtgOQuDYHhtz3xxl6HmG1pVQb7LSTn2dKFkvQk+zBaeqs1gRhIHYePfFHTVeeUWpI3BSLZDIPbIRIqbWV5sgUs0Bh8iYTYyzszyN04jv3WhnodGvJxh5LysQGTnygMV7DdthIGaUc0LLuIOff1xQ5zdCzJcxlnqVASZc7VPwbFbHYQThA7RCnR9STJW5ucAz3no7YQaX1jqauVJp2ASVKFgPlHrZtpsMgMremO9N0Vt1QDC9QZU1JkmYyutnDDossy5vhI4cd8aP5LNexpKSyzBhqZQXnAB0WBuFmLwvY3Xceq0ZlnHM9sW59zh8fW/m5X2niC94IIIgrLlvX4KlP03Hio90VEVjUVfIlPLZJyo0s+UHAKntBigeUPRkinrpUmmzlz1uvTuqviYMtzsW2E5k7YsCLOkJ5iwvmyipswKngRbvhNNWKhoEehHxRHQCABHoR9AjoFgOcfY6BY9BYK5iNOcnq20ZRfmEPiL+2M50mip034qTNmeZLdvsgxpPU+U0uhpJbqVZZEpWU5EMEAII3EGJIzTXi9ROvf4yb8ktmHbZa/f2RIuT8/A6X/APbajs2HZ1Qw6RF5s0Ydsycb5m/Tbgw/3xiQ6jfE6Wyt/JlR39HbAQoH/fhHvFHitnqpSWjFhtc/JudhAG8A2PXePlZOUTAiEsALE3uCw8plyyU7oqHBdJOMlWULZfEyb95KXJ6znHRdMztzgbspcsZdywhfDhGfSJNxnlw6vCOd4Bz/AAzP/rnHYbeqPn4Unf10367++G4NHoNALTWzDtmOe1m98c2mX23PbHDFH3FAKVawj6WvthPijpSzCwlsebGIZiz2Xzs/DtzgPQAG6PeOOaOxuCUGW9bd4sNscw24mAYJkW79zf8AH1v5uV9p4qWeVstgQQDiucicRsRw6Nh3GLb+5v8Aj63jzcv7TZ+vwiKveCCCIPLreIzpvVWXNYTE6DjZw/d3RKI+EQFUaa0J8ifLuNx9qsNkQvSuqrrdpV3X5vyx2bmjQlTRq4wsLjriN1+qzA4pLC3zWF/AgiMkZwoaB5r82i3fPLIWttvfZD1K1QqDtwDvJPoEWDoDUSbT1c+ezIQ+LAAGuodsR222WAEShdDHeT3C0BUMvU597+C+8w50upKnaXPeB6hFpJoUdcKpWigN0DauaTUlBsRD54Lesx51s1WnTaZZUqnkhlmKwMsqlxZlIbIbm69kWlLoOqO/3l1RAx6o0LU9JIkEC6IMVtmM9JyOrETEikEx0l0sdlkwGWq+aBUTkYojJNnAhywuS7cFNrdcS3klovvttIU4YAPRPT84AWUGYcCtbK+82Nr4TF5zdGSWOJ5Utm4sik+JEdaelSWLIioDuVQo9ENqps8hT/l6f/HP/eiv67UfSMuoeSKSeyrMZBNWS5RlDWEwWvkRna++NVQRBnLVnktrqpp4mE0wllQrTZLfC4sVyouCLYR9YQ9/xIVX5bJ/RP8A6ovKCAoSt5F9ILbmp9NM23xY5duFsmv6I5UvI1pJr45tKnDpTGueFggtGgIIChTyL6R3VFIe+cP2DHM8jOk/66i+vOH+VF/QQFBfxN6U/raL9JP/AOzH0cj2k/n0Z/vZ3/Zi/IIDJOsN6Opm0s5EMyUQGwOzIbqGFibH5Q3CPpQtKlzlUBZjc2qgksWJtsPvjVtRQynzeWjn6Sq3rEeZOjZKZrJlqfooo9Qi7GYqbk50ixcPRz1spK2CnEw2L1Xi6uSnUVdHyRObnRUT5ac8jlCqMLnCoUXGbbyYnsEQEEEEAQQQQBBBBAc3jxH2CKPseoIII9CCCCA+wQQRFEEEEAQQQQBBBBAEEEEAQQQQBBBBAEEEEAQQQQBBBBAf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhUQEBAVDxAVFRUQDxAQFhAPFQ8VFRUWFhUVFRYYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDQ0NDg0NDi0ZFRkrLSstKysrKysrLS0rNy0tKystKysrLTcrKysrKysrKysrKy0rLSsrKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAEAAIDBwEFBgj/xABFEAACAQEEBAgKCgEEAgMAAAAAAQIDBBExQQUhUWEGBxJxkaGx8BMiMkJSYnKBwdEUIyRTY4KSorLhM0Nz4vGD0hVkwv/EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAXEQEBAQEAAAAAAAAAAAAAAAAAAQIR/9oADAMBAAIRAxEAPwC7fo8PQj0Ix9Hh6EehEpzvDjhH9Bs/hIxUqs5eDpJ4J3XuT3JIDb2p2enHlVfB04rGU+RFdZzGkOHeiqV6TVZ7KVNSXS7kVDpLSVe0zdS0VJVZes9UdyWCXMQuMbtS1mbRY1r4z7P/AKVh5W+o4R6kmaurxmVX5Njs8N8k59hxfIGypk7R01bjKtmVCzL/AMd/xIqvGJpCOt0KCT1puirmnhrOXnA32kdK0alhjQjeqsFBNNXX3PJmoCKfGha/Os9mf/ju7Aqjxs1F5dgs898VyfgV9OJBJGhb1j427G/81g5G+Hg59qR02iuHWhq9yUoUpPza1NQ67rjzy2OTV2GvquA9XUKFnmuVCFKcXg4qEk/eh/0Gj91D9MfkeauDfCO12OalQqSUb/GptuUJLY0eieDWmI2uzU7RFcnlLxo+jJamiAz6DR+6h+mPyF9Bo/dQ/TH5BBrNIaT5D5EFfLN5IAt2Kj91D9MfkQVFZY4xp/pg/gaOtaJS8qbe5ESXP7ydG5na7Iv9OL5oR+RE9IWXKjF/kgavkCuA2f0+z/cL9MDK0hZ/uF+mBpLY2lfHG/Ikoy8VX43awNzG32X7pL8kSaFqsj82K54JfA0TZlAdJThZ5eTGm/dEm+i0/u4fpicq2lt9wVZ7bOPkybWx6yjoPotP7uP6Ymfo1P0I/piRWG2KosLpLFBQEX0an6Ef0xESiARXXHG/q7OvxJv9q+ZYpWvHFLXZl/uP+IFcqC5jEqZiUgadUzqyCccqizjfzNICdoe0x9Ie05zSpal73A9SJIqrG1Js6RANaTWSBK1V34agyvJgFWbNBmsno0m9wPy2EUZlG0s1CPOy9eKp/YIrZOfaUXZWXbxSS+xtbKkuxAducnaJ/WS9pnVs4y1T8eXO+0xRPcIEVVod9KZAS5LMilVWwidq3IinadxRM6gzwiBpWhbBvhkAZ4ZDo1AONUmp1dxQbDWEU6L5gajWDKcyg7Rcbp6tjNsanRr8f3M2wCEIQCKu44p/WWdepN9aLRKl446n2iitlJvpl/QFf1qgDVqEteRrqsznsTOoOjMB8IPhUOUitnTkPkCUqhM5nfKB7QjXVQ60TNdVmaDSeiwTlk1G/YUbqyMuvifl9lqLZU+CKOszLo4l530Ky/ET6gLFlgcJbKnjPnZ3NZ+K+Z9hWCtTvd+vW7n7zFBrqmPCg3hBcoyoh1CKUyNyGORUSOYuUQOQlIoJUyWEwRSHxmUbOjUNhRqGkpVA+jVKN/o2Xjrvkbo43R1rk7RTjhG96tupnZAIQhAIpvjiqfbILZRXXKRchSPG9Uvt92ylBdN7+IHB2iYDOoT2mRr6kyWCVzQlJAzmZjMzwbKk0T6gKhIKTNwRVkgKolsC6wFUCMJjoyIbx0WUbKzyLk4kp+JXXrRfUUtZ2XDxIT12hboPtCrRtbuhJ+q+wqlPW+ctPSLupTfqy7CqYsxQRFkiZDFkiMqy2RykOkyKTKE5CUiO8ymVE0WSRaIIsemUF05hUahroyCKcgDdFy+0UvaR35XejpfX0368e0sQoQhCARRHGvK/SNTdCmv2l7lAcZ879I193IXRCIHEWpmuqSDbWzXTYCbMwkRNmYMDZWdhsTX2Zh8WBFWAagbWAajKhg6IwdEA2zstriQl9bXXqRfWVHZy1eJOf2mqttPsYFs6Zd1Co/UZVcWWhwid1mq+yyr4GaqaJLEhiSxIFIikSyIJgNbEjDEiiSI9EaJEA+LJ6bB0TUgCrI7qtN+vHtRZBWlJ3Ti/Wj2ospFGRCEAjzvxi1L9IWn/AHLuiKR6IPNfDipfbrU/xp9TuA5W1SAJMLtLApMoa2OgMY6IQfZw+DNfZw6IUysA1A2sA1Ahg+JGPiAZZyzuJid1skttJ9qKwoFj8T0vty305fAC3+FMrrLU5is4lkcL5XWWfuXWVsjKpoMliyCLJIsB8iGZKyKYEZlGByAch6GxHoDKJ6RCiekBJmuddpZkHqXMVnULJoPxY8y7CiQQhAI8wcK6l9rtD216v82enzyvp+V9es9tWo/3sDRWhgjCa7BWUYY6A1joAHWcNiA2cOiBHWAagbWAqgEY+IwfEILoM7/imndpCnvUl1FfUDuuK6d2kKPvXUBc/DV/ZZe1HtK5RYXDl/ZvzIrxEVJEkiyKLHxZBLeRyH3jJAMMoRlAPih6Q2KJEgFFBFNEcYhEEA2qWPYnfTg/Vj2IrmqWHo3/ABU/Yj2FBIhCAbN6nzHlLSsr6k3tnJ/uZ6qtUroSeyMn1M8oW2V7b3t9YGqrsHZNXYOyjLHQI7x8ADrOHRAbOHRAirAVQNrANRgMHRI+V3xMrveAXRZ2nFxO632f27uo4mgdbwEndbbO/wASIRePDyX1EVtmuxlepne8YEvqoL1vgcARUsWSJg/fYO5T7cdZAShMiVTmHcvds2AZHRQzlbnsHRnueF4E0USxiQxnuzuyHKs9y1X5yzuyAJjEe5pYv3YsGlJ6727teyCxWYlndvw1LF4yYEvLvezd8yxNEu+jT9lFcRyLE0I/qKfslBwhCAF0pK6jVeynN/tZ5RtTPVHCGV1lrvZRqfwZ5WtLA1tYHZNWIWUYHQGjoAHWcOiA2cPgBDWAaofWAaoEPfZmZiN77cx673gEUTp+B8rrXQf4sO1HMUToODsrq9J/iQ/kgL24wZeJTW99hwh2vGDLVS97OKIMrv8A9Ge+zMwZ77cyBy+eSeRm7mwWTQ1e7Pah6+CzAcvdi9uwSuuyw37TK9+O4ysM8NqAfFa/esm8iRX3Z4P0YZkaev3rztw6OGq7CWCcvO3gSPPC/wAbBOby26h+e+/2nj0IZN43+t5T3LJYjuy/PxVissWBmPfPrzLC4Pv6iHv7WV6vl33cx3/Bp/Z4877SjaCEIDT8MJ3WG0v8Gp/Fnly0s9OcPp3aOtT/AAZLp1HmG1MDXVSJktQiKMDoDR0ADrOHQAbOHwAirAFU2FYAqgQvveOXfIb/AHgOj3zAIom70PK6pB7JxfWjS0TbaPd0oveu0IvPh7K/wPsX9hyB03DWpe6K/Ci+k5kis99mYu+vn3CXfpEvlhqzIHL54O8f/WSGL55D1du83agHr4vLcJLV7nkJfF57hLD8rzYEkffiskhzerXsljLfsQxXbsY7WOW71sEo57wJNt2/Bcnzdr7TKfdflxkxmfv3yfk9CM9vS8FgsEBJHv1YfM7zgq/qF7TOCj3z68zueCL+pftPsRRvBCEBzHGXK7Rlp9hLplFHmi1HpDjWndoyvv8ABx6akTzdaijX1CN98ySoRvvkBgfAYx0AD7OHQAbOHQAjrAFUPrGvrAQv57x8e+WQx/PcPh36ACaJtLHkauibOygXJwnnf4D/AGKfYaI2emKnKVF//XpfxNaQJd/+zK+W/Mwu+W0S+W4gdH55tEi9+WaYyPvwexj/APjigHL34vYZV92eD2DVjli9uwSuuy8l5MCS/nxjmkZ1bvO2yGr/ANcIj/8Ali0uwB3fXdHzdiEsN13Mn4uzFihu3YL1drMxw92tp+q8ZP4ASJd/e+g7Xgc/qpL1vgjjEu+Gbw+eZ2HA1+JNb12FHRCEIDieOGd2jKm+pSX70/gedbUz0Lxzp/8AxruwVak5c17Xbced7UygKZGPmMYCHwGDoAH2cOgAWcPgBHWAKwfWNfWAh/veOj36Br+ZmPy3AFUe/fI2lkNVQ798zb2RBFnVanKhRf4NJftIB1KjJUqLlhKlBrmwFd379pFNS7+7YZj8sH8GZu7+7aZiu2OyRBi7Vr2SxV3YOvxw83zmjEcMvJlg3HPf2kjv144x9FgJPX+Z5rv7hJ6vyvzu/SZS15+U/NWzvrFFO7B+S/NS78wGb1u83NsfFdssFd1sxr14+bnGJlXX5eVLbLLvqAdHFflx8Z4PJalzjo5bbljc2vFllhHnGxyy8jG6C6Fr9w6C1LZqu81ectSxfMwJo/Hn163jm+pHV8DHqqL2X2nJx/rXzLU1lj5J1vA2k7pyyd0Vvuvv7SjpRCEBz/D7RbtOj7RRir58jl01tlBqaXVd7zyxXleexzzlxucD5WK0ytFKP2WvJzjdhSm9coPYr9a57gK7kM77CZpcw1w+G8ojHwMcn4joxAMs4fABs67Q6AEdY19Y2FUBrIAZjofLeJx7ecfCHwx1dQE9nXf+zd6Ooucowir5SahFb27kaalJLeXFxR8C5ScdIWmLUVrs0JauU/vHu2BHX6d0KoWalFf6UIwv5lj0nH1KTjj7nlnnkW1bKCnFxeaOB0lY/BycZLU8G89xFaG7p1+q34vQxyWtX6vGjinG/wAXatTDJ2PHku6+/U/GjrV2GwiVCSeGrlLyXdqUbtaeV+SAHSd2b8R+jUz6zM0r3qXlQxjJdmPwGzV0fGV31Tb5cJQu8bNxw5lzkkpK+WteXTWqo1ilk8ObMDEbr15Ply9LG7tMQuuXk+RL03n2dZLTvvWt+XNeXB4LvqxRiN9y1v8AxzeupBYPO7+WQCuxuWUMIN9uPwJbnfrvXjSWuUY+bsWK6yOUo3SvcfIpPXOc8XqvUeprEKp03ytSf+WSfJp3eZi5S/kuYCGisGtlPXFb/SliuskorBrcm09XlyVzm8eZE1GySaV6SfJp38t+Fd8ZXtNLxb7s1nzBdOyxWt3ye2Wu7xnJXLBXX9SAHslnckm9ULlrwvXJj5Keu7HW9Z3Og6ajTSSuzOXsMHVndHyE9b9Lctx2lmp8mKQEwhCAQBpvRVO00pUasVOLxUlemHiA89cMeKi1UG6lji69HW/B41Ic3pLrK6q0pRk4SThNapRknGUedPWj2UazS/B+x2pXWmzU62+cU5LmliijyN1jopbOgv8A0rxL6Pqa6FSrZXsTVWPRLX1nLW3iRtcb/A2ujVWSqRnSfVykBWdFreFxkt51lXin0vDClTqexVj/APq4jhxaaXvu+i3b3UpXdoHKVJLeB1bthYkOKPSssVRh7VRu7oizY2TiStMv81spQWapwnUfS7gKlbfNzE9gsFatLkUacqstkE5dLyL70RxO6PpXOrKdpl690Y/pXxO10foOzUIqNKlGEVlFKK6EBVPADisfLjXt6vSakqC1rVhy3nzIueMUkklclqSWpJCSMkCNXpfRkasXqvNoICtrbYqtF6k5x2Zr5gsLdF6r7nseplk2qxRnijQ6Q4L05+amBzPhUYbi8bng9aTwwyDLRwSmvIlKO6+9dYFU0Da44SUudfIDKhDZHFyXix1N4vnHQp01ddGKuTirox1J4rmBnou2LzY/uRlaNtnoxX6mBsITiuzVcsOYkVeO4Bp6DtksZqPsx+YdZuCMpf5JSnubd3QBDU0rBao+PL0Ya3/RNZbFWrvxlyYegs+dnRaP4OU4LyUbqlQjHBXAB6M0dGmkrjYiEAhCEAhCEAhCEAhCEAhCEAhCEAhCEAhCEAhCEAjDEICOQPMQgIJmIiEBPTCoGBASIyIQCEIQCEIQH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMWFRUXFx0XFxgXGBsgGBcYGBgYHRcYFRgYHiggGholHRkYIjEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAFAAECAwQGB//EAEgQAAECBQIDBAYFCQcEAgMAAAECEQADEiExBEEFIlETYXGRBhUyUoGhQlRik7EHFBcjU5LB0/AzcoKi0dLjFkNk4UTxJGOD/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAoEQACAQMEAgEEAwEAAAAAAAAAARECEiEDEzFRFEFhBHHw8SJCoTL/2gAMAwEAAhEDEQA/AMOtWUSzTytYFnYYAcHrb/3AyXrGmOskhnNqQVAPjucX8M2i7spgoQk8zsATy4IBINrkKsnrFXEdSUoBWCo0kCWCSxKkhTK6sprdY8KRgIcO1faVEjLl6jjNioOwYtbeNOmWg0qDBACjzFzgDPQh8noY53htUxC5fZFCQ1NLBqSbuzWKn+Ft4L6EGWCiwSTypLvYcxUTnIv3jxjUQVBaWEsWu7qcDdRJYEb98YZqQClwDYAAgAl7l7BrJxhyYgNQUm2HZwbAu7XIYubWwOlozI1Kq0lQ2JQQC2W5gHYsEtnf4SStkzrkJSQEhDpKbDIuAQPIXw20Z0mYss9Js1muQp3OCHKS3ffAhhNSSbr6sbc3h0sLPEdZq1JlhSKgaWQlSXqIFwemMu38BmQklDopKy/vAjJ6juwx6fGMiSmUVUpUoKXuSSSSkJAB7/4Rm0mtmuK0oRdnuGURUX7vB/hka9EmalJqWlfNyqCsjoWHW3wiOSoomcQnBbqABAsLEkliHAHLjA6xcOILCiCi4z0yWYliRgbX8zlHFEVitKGS+R0t1u6QfMRfxEoJSpSVFLFVdWDb6P0rX+UUFcvVKWuhUskgkG1ikkXBcbP1xGw6IJYuhja5LcwILPv4+UUCSVlCkL5VAKADpNPXa2A1890UDTKUkpXNMy5pIUUsNrp8G32zAgURJQAQGQ1jT7NwO8dTt4RllJIATMUCCXAASE0jr1Vb5QM/O+fsysgpJSpyguCSzl7P1PQ2d4Iaeek2pLs4dOQCwbuscdH6QaaKuSrWTgkgFBSkg0qSCygwcVJTZja+X2jntXoqgSmY4pwsFx0NeQevhBbU6vmWhVPZqFSVDOLg07jJOWIdoB6kTFhkVTJSlAM5CmDZdIA7ubd46UIDSZdAcAVBykrVk4ZJ6BiQCSW3groFTilJWWuCQ1KUl3CgTs4d838TFWg0wYKvyApMspe5ZPMGABDAinq73uSVokr5lrpdiQ7VAEEAvhsecWpplaLNIKUpK/aUtiLkIFxSWxg3A84J6zUJQAkEZAJs4qa/wD/AQMnqUk0hKFbqABBALEtQHJqLBu+9ohpVomFdJTW/OC+AAkl2Hf54uY5NSSRamSSkSysipZUC5KuzCSSkn2umeuI5mdqihwU8qSXUlamJFnYs5BGD3WtHU6mlIWsKCRSwANIABG+z4d2v585rZQUEy0yihahUsqLpyXBa17EYtHSgGJOuJQpQeouyspHKSzAG7FsMKY3qmqQkFQpXgAEcxLdCQfpM5GNmh/RuQpBVJUkYKkqD5+2Nz0DbbxfrtMXDKLmYmgsDTezhwdwLDraNt5gNAscPQFS5koclReo3JsDSlQcjobsxO179LMCVFZSlagTQ+UM7gnzuWDm0WaHh6xMqCiUrIcMACCzkMbF3DNtArinDJgmsS4pcqJskObWNgOnfGsMsSgmNKKipapalGxs5GGCgLFT0sG6Qp0+YpR7CWQgCkgKPNsQD3NnxjDIQFTAoIBAJNksBtSSQH8g0FNSgqDidyOyqXDFnUKuu929nfEZeOSGRXFSJhQAgAAglT2KQSGBwX93cjuY2lAKUGtIFytKg6kkhw+XIYBu/rA6ToZc6cmgGhKRUFKeliCwawI3GDVBfVaFB5iSkAgkuwUQwG1yQRYB/N4xVUgSWsB0INYFlEFyGZx5HHhA3V8LC1BKlLUXsEnl/d7jlr5vGjRTQVUpUAUktgOS7qVkk72H/AKIStai55QRbDt495YfAxlOCAifqZaJZUAWJpNJYJYsGKbgApa25EC53Ga1BBQAQWAULDoSWe3Rm3jRrQgT6UkuhNQ9o1WLBQ29p/icRRO0BUqpQcu5UFKvuRUQzMCz9AI7KDUFg0azNJQpgHKgzBTip7FiWUEud0mHIkJYOtJa4Can73CDnxgnpdSSkqU4UglKwAXLWsc7jHUNFKdLNJKu0YEuACzBh7QpzEnsjcnQ6qYMF3C7VEhRpYAmmwFWzXYdRF+m0kumqpnJUbulyA+XZNhYdPhEJnM4Wm1W5G78wD2OD8cRLVSQUKSwAKSBmlrC/f3i1vjHCSNmDWcTEhK2UFpFquVyonlCiDZLDcZG+Io08xKwlY7UFyoCZgBKmuSAzlt2jRp+EfrErIAUC7klSXSdjYDOABvbY79HpQmpfaquHqJ5MMGBJ6XJfvxFcQAfxTRTFSz2YU5um4CifpMSfZZsv1HeP0CtSiUorQpIAYMAotswGz7vcPaxEFJmsUhNa0ha3SgMQxCjuxYB3HXuiSkLmAKdSKSDQZZG/Uljnw/GCeIKDVTZpWg8xSXUoLF0tc3Fgd8H4WghLkLmuCgIDMEqDg4IccpBPxxFUnQzSoWShJNRNypQS7B7M4pvmwZ9icrkSAzEB6UgBnuWNRSC+zwwQWq1TIU5cpS5CS92v7X8e54HesbEgXKAooIAQh+qrDIL5xvvdNZKTWpKFHqLBzZg9kEjwLnLxdRLCEAsAWLA2WVMA79zeUSAABKmrqSqUEKZ/aCg9nDPm7APttBSRp5aEIUoLDCnBUGDAOBYYfpGmelIWtRJAcB1OEgdBn6Q3IhL10oNXNSFOcuEv3u3eb99403PorJq1SAmoglsOC7MLhyCPlgxT+cJLmhk3VUCk4AwnvYYBhTZgS8wlKEB7pFyp7FwWsA1x8Yt0urQpIZdyPAnY8oZ75ZozBDFoBLVXyMx5lKOWJIUota5J+ERXInKUsJNKXYEHboyh7JFIcXcGMXEl/m82ZNao0jqAE1MVqUBm5w5G+YbhnpFMWsJWEEFVgCak0v7QUxyobbGNulxKKXhazWFI7IJSBUkJpKuoJDEg3z5PAdE01LEsLUWakuyi7Epw4u1uo6tHRTndQN7kkEO5L5IAB2t4CHGkIsyE49m+xCqRbmOMf6RFUkAdotNPTKFJSJhyLq2PK5Nnxvv4xTK0k2atTroUDSVFQLqADpRvbJb5EQYl6cy1pvsSq2bWLBvsmI6vUy1fq1uQSU39kkDFQdjax7sxVVJZK+37QgFRpFhSF35SSQ5wchXUC92jFqDJAAROKb/S5eZqnJtU2O53N4gvQpK7AoB5iNlMwcqYkEEvm98Ew+v1iUppUK8A2UBSMkm/Utcb9Yv2IYOG61RJl8yqU0kpX7aSPasSSsm7YAscwc/NgElwlEtgzNUKH5V1MQ4JZmbygOTp1zqQghamIKSaVMHCVAOMAdbdYGq4wozQJ6q01MoFxSb9zinlPwaNNN8DPoPy5FalUnDgMAb2oLPa1TBrjG4ioKQkAzQyQ5SpQYg2BAFILEFsd93iPC5ExIVNRM7R83csA4DEP1wdg2bQ1UibqE0ThUaqklH0XCiQoKZ2akeIcdZ9wVyzLK0c4KawqW7e0bEKLi3M9IHTa0a9TLExaBMDpl3VcAEkOGOSGJfDt1F8XD+EypKCqZeYlViHsHBHh3va+8WamWuWUoD0TCos9lqIPKtKS9N3se6zuL7wVMolzEJKp7uVlnYBI2NIcMxJJD7CKVLXLWoiqhiXZNJ3AbJt43vi8EhwpMpACmOyHJOzkbDYGp7EbsI2SpRKVCYQnmFDjAHvJHjuf9IjrRJAiOJqCVJpUF1EqUGqcC9jZy4GekE0JmTAlS3cG6WIBdmN7t33+DRadKhKUuEFQDuu1RSGrJ6sw+HlNejDpUxUXeyjSymflsknf+niYfBGD0aN5qZZ7Szl0qYMB3CwuA/fiDUqRQipCGf6JJ+BUo3LdG/CMunVT/ZuAU1msO17A9+WziGmTJk1IUhQUhWxBv3Avbx7vjEcsENTJaY4511KUl0sk2NiRjDFSrfwtmlKnVLWlAehJDMAHba5cs21o1SVkoZQNaWZ0+yHBBZg+drWijUGWFMsJCSKSkHOXfqbH5wuNXArRzliYEKSsixUuk3uA4A387QTloSHDoActglns5D3itWucFIqBU9KWDkd3cxH8YHo1E0gK7IqqALm72GHBIDAFrZPidNXGeQ9MStUxJKgWBU4tszdFD52+MXz+IiWkTCpgXdJ9oADACd+UiK5qe1rlhKkMAEKN02URZwdg+xx8B+nRMBYgVo9kKFxYipLkOAA+9nw8YgQFV6lS0hAYEi4TvVi4c372iWk1KDKAAqZgUlQJAcsS/w6Y7mgPJ1MxCE+1MmF3fNKQLu2zjlz84q0/GFVXACEmlTKLOnlIO7efjB0sG+ZdJoSBdmGSS+4IfJLEPfoXjRqZ6hKClFVY62Ba1SnCU74LRgPHCWpCQSbJCwVOerpszjxB6lov1c+yk0oPKQSC4cpcAg/ERI9MF8iYVy3K0uHposyUmwLlyXYPgD5bdIQAWAe1TPawvy2fGGECQtaZZp9prUAYbFI5gT0s0aJOtmKmBpYb6bFIUAwyL7f11sAfikoqIY2WGKSEkFJYvTsGtnvznJL1MyWKZSAtANgqygC1w7uwSS5NyR0i7iE2W7TJtKd8XDEMGe293wMRl13GpSUmkpmskNSbnmALG2xFgXLtGl1BQgglZSWCQrmNlfRLFzYXDEOImmgFiiWKjyOGT8/pZijT8QmLIQtAQCAQoKN6vAWNgbPc53jJJlrrqCzUkXBLoPtAFJbrsHbcENEaBv4pp0zEJTUkLJJCSQUlhgg3IF8dYzz5gRLoKU873QElIIINVJLi43diO62VKJ7ITyKAJc+youS5QQ92ufHy26YUpctZOynZ7gBxchwwI+iDu8FhCDLxaUSmkEOoUgkJqJVcmzvjbYXjBqOG0rE0BQUCQQACkkhmDFwb3JGcYg0pYpSUkgA1HvFTnYsOVm2fwizhvE0LKqiAAQHqDKB3PcTjrGk8DgeXPKQFAFWQo2YbhgDhxk4frGuXLUpDkAE26hnzVud/GM06euWuwKgLKDczqu4bObU99onrNcgAKvSCzJZnBc5Ys4N2ywjm0ED9VPKUiguEhlm9r3789wcFxiweVo5pLklUo2BJDAjek5cDfYs94PT9ZyvL9pTEBRclJO4B5QQbYdtmEVo5QrIqJBU4uGFKQA7vjGX6xqlwWAf+bOlIBIDU1EkEJSSyktvcWtbuFxE1U7TgIUlZSGJpqsSS1xa1Izm/wADXFklUtQTWgpTUCAajynATjAyd/OrR6qdMkJWEFSi4LAOwJAVm3eGZyLNHRPEgFaUSqzPUpaSFEszl3apa1MCCNrvVbpBNekQoldKMXUUhROHKhu7AP1LbmC2q0AWki5INWchKU7XsWwB9KMglVS1laAS9wFOagAQzMzKIAYdTGW5yGQKqkFCEgKYNgMSncAnmx1jNpUXIUQqmWVAo2ZkhmDBVJIYXNQMLhsoS0TZjL7W1YCif3bmrI5gdy0PwsKSByClYe/9oayeZX94tanAJsMjMD6JEwprCwZbkkJv7OAAC4uNn+EI8RBoAKVqAJTRhLPek8zkOWcv+OXjypqaTJUUgqKUoSHwFFRCr56eECTIUqcHN0pClkOfC+ckJL9DFVCeSqmQuvU0/wDeQ7vQ7kGxpA9kF7nvMDNfOMxQU5JYE7tg8pGCL2FmaGXwsgmZMWlIBFPNdgBcDLfx65gqJkqWFiWkgtUAtJ9kpdwAHakta9w7RrjgQYNEqZMmKqflSUqZQsFWCk3GCSfgI2TeMnEo1ywl1DBclqidrjADl+8GKdfJf9ZkkABnc3YsRYF3sQBiIaXWhQXJmFIFRZR6ubkoLFnBfF3gs5KwgnjApCUzCutmFItTlKRSHdsNnxjVp+0QWmEBLuCrltd8E2unvzncTJUqSVKlIUFWlklKQDkug4ZVmcPbZ3ENAkrmFZZdAZYmEMzXYEXS+1oNKCQdSueKSPa5mVzWD5ceJZm3gapAKlKCqWICVFqiL4Ycoxl97Bot/N6ylNkpCAAtLe01KQEgN7JwMObXERmacFaRzKFyQ+5H0icEO+XtHFYIZuH6ZBWiYehANjSXZ2ABSqkC5HXG5fTaSSQSEoF/eZ++xIf+LwE1hCA3Zuh1EKULbKAdQpyTk28QI0StUogEJJe9lO3c4/8AcbSlyUKq1rJqKwXOVWGGBLDaw2sYpl6sEAkCp/adx9ksl7t73QwLXrEKq7NVTIqJD+09mDkYKnLNyA9Ix6TWfqgC7qBWejhRcqa2RuLs+TfNgDf50hc1KhSna4u9yWLggcpPfv3Z9RMkc8oFJUqskghxcOkBQvYKzZn7ozpSmaQUkABlAMnAtTax65LE5U7Rn1UllK5HUUO4UKjyioMC6Q7nOzXcRbBBokUlZDzF9ksOSeVwVAKCUn2rP/hZrxlVxUKWQvSoFiVMblINXMWuWSzHJbpENJrlKmJRK5wSVKdnIDl36Ug2tdIglwvSiXLUAwWSGUoseYbgZJLkYez5eNcchFvDZypiElUsJs7pICgGDHbLOXaxGdtvDZwUkhKwSpnYEzKjV7RSOY2OBanfYDxNSZaQoBRIFLNY3LAsbCw5RmkDENwXhE1DqrpKkhSgbEBK+ZJG9mNQIN4YiQQ12nNYQtaFggMpZ5nYHmCTglva6npF+jmSgpIDqW6hUEskqbcHmIFQVYglusE16JdNCudJDGqyhsaNwGe+TYNDI01CSEoqUkWSSCQlwpJAGaOYgk52xC7ANKpSVIQtwAlzzJG5cBiLHAduo6gx4vPQmlBQSCQlkksL2x7RDFXdkneBkpS+VKlEKKiSQwCi5JLvlgMtnwieq0sxKVpW6qHWC1RUxLKAUPaII5QwDOLMBm0pchSArmSsFrUnlS4UFFt8i9/atmLtCtKF0AoIZKVFdiAbhJe/XGT0vAzh+pBIUFErRSC7vUO0BKvosOS3d4Nt0akTFKK3WSqknAAdRSCq2LhjuL3tBg3yZiFTSlnCh7IJIKQ6hSn2b/xEOjToTLShKaKlMlJPUOe5VyRexvE5horUGLJYEkuGsQAoHapz9nyacsAhSwznewLYCSfhnLd7RieiF4koSpQK2XlIV9FglKqRblxY7lxAbXS0icHCayQoEkkFrJqtuanPcMNFmr4pSZoUUhAcClioUgkjvy7uLgWiGnSmbSmYqoMLpqAfCgLYJZ0qN6Sdo3TINWkUpKihQlyyzJS7CkGzF8M1iHz3xd2faoFyChVnKWUClPMQM3NgCfHaLtZpgDLWQknJVZgKTfvs58RFejKUsCSoggOS97ukJSksnBL4qewZ57NRkwUFSikk0kKTtUQcNYMHT+HWMfD9UpS1dmElLO6rJAJWQnDbg9T84Ly5NXaJNXK5STc8xCzS+RZx0Ls0ZhoBKUSlSqVkmW30WAU97Eul26PGpUEag2aWWE4pDWLBg6mCXIznJ6mMqUoNKKgA16RyuHyAGFy3Wx7zEdUSAVnkNV/acjlamxcmws0D50lXbUApI5kpSbkEg0qUn2UhLhQ6Ah8iM2yC3S69K1KlIApoHsMMG4ZrBI7/AKW2If8ANiml1cqSKUuQOUpYJBsGtmwjTwpEtjTiyXJIAS7sCQdyPlFX6tDJWXYgklVnchIUegtYWtvdn2IZFT1pmmWnmNJUSQbOQGScEsQCbbDrFvDuHCjtC/aFCSRcsAHIa13D/ECIlAXNTNusqZlOSRUASoINkhrX646lZYpQQpV1FJtm3tsS7ix23Mb4NI59ExSpaCqWDS77eyagnyYt9k+Bbh+tK7hFaAoharukFrtmkvnuvHTzJKQnlZKd2wz2OMWbG/wjD+ZyULZIpuCQLBJdLMNx16AmJcg4BkqUshZmF6i9Aso9CSFWADhvwvAvg3D0gha01AuUpLMR7xBza4FmcG0dJpdOQqlaFUpT7RTlRqKyabO5D3G8aJ8hE1NIArAZJYOnAASSGLkbFzC6MEn0ZFoBoHsKALJBSBgFKVMHYbsdxs0VytMEAhAUxLlHfVdTqzZiGf5RdrQh2IJVn2QSxsASA4ZgS3TMSTq1c1KEWDFSWCjk3A7wR3OqwsDHkjM06eU2qq7PnXckID4UxVc825wPAFEKdJmKHMprKJpKmJWUAYABPwe5aMOqUoky1UKSoBmQCSUpSXI9k5Zu4nwlJ1joSlaSn6RPT2VAhxd+bbc4eJgIgjTLUT24qq5UjJFIJdP2gN+gfBicnhwCQEigbUsQoCwUS+WAB8Ib1wlKS1iPZJURW78yeo2dxbwsPRxKYp3UVkEipEtJBbDl7qZnaLDYLOE+jGumBOpkyFKC7hXaSg4FsGYCMNgRpV6E8RLf/ilhsJsgDy7Twj1j0e4aNNppMgfQQAT1UbrPxUSfjBF47wdIR42n0R4oMadQsB/aydv/AOvc/jFk70Z4mQX0oDhuVenBYWAtMw20ewPGHi/EJciWZs1YQgbl87AAXJ7hC1CEeR6P0S18oujSipmBK5BIF3Z5m7kHqDE1+inE1BI/NQycDtJGzEP+svcPfqesdNqfykaVJZCJq++lKR/mU/yihX5Ukj2dMT4zQPwQYtpMABPopxUM2nNsfrZLB8lu0ZzCl+ivFQor7BRUp3JmyTl3sZjbwc/Sp/4g++/4ob9Kv/iD7/8A4oW/AwBR6LcUcn82DkEXXpzYhixK7Pu2Ymvg3FhYyLMzVyGbwraC36Vf/EH33/FFE38pxP8A8Uffn+VC1dDAJ9R8Uv8AqWcU2XIFhsGXYeES9UcVZuxt/fkbYbntjaN/6SD9VH3x/lQj+Ug/VR98f5cLfgYAy/RniJKlHT3UXJrkhyab2X9kRKT6P8SQ5TJYkMT2kl26A12Hh39YKn8o5+qj77/jiJ/KMfqo++/44sfAwYTwviu8r/PI87Kz35hp/C+KLACpTgFwKpDO4OKuoEb/ANIp+rD74/y4ifyiH6sPvj/LiWroYBCvR7iD1GRe59uTku5atrv+HSLpHC+JS2pks1heSer5V3mN/wCkQ/Vh98f5cN+kU/Vk/en+XFj4GDHM0PFFIoMolPT9Tu7/AEn3MUSeCcQSzSCGVULyvate6r4HlBfT+ny1lhpQWBVaYcJBJ/7fdED+UM/Vk/en+XCAZ/zbizg9nguLyNsfSivU8M4pMaqU7YdUi2Mc3dGsflEP1ZP3p/lw/wCkU/Vh98f5cLV0AdO4FxJYZUokOT/aSdy5wuJHgPEiSTJckMSVyHuKTcr6WggPyjH6qPvj/LhfpIP1UffH+XCEDGng3FBiSBk+1I3Z35r4HlGSb6Ma9WZB+E2UNwdpnUCDH6ST9VH3x/lxBX5Rj9WT96f5cLUDAOC8SAA7KwDDnk4H+PPfm0IcE4k79k571yW22rbaNp/KIr6sn70/7IQ/KKr6sn70/wCyEIFB4VxU5lk+K5BxjKof1LxSoK7IuzPXIx4VtF4/KOof/GH3p/2Ran8pivqqfvT/AC4WromDN6m4tnsj+/p/994qR6N8UBcSLu71yOv9/HdiCP6Tz9VH3x/lw/6Uj9UH33/HC2noA9Xo3xM2Mh3De3IwXcPW+584SPRziKSCNOARjnkdAPf+yPiHzBeT+VFB9vTLH92Yk/iEwT0Hp7pJqgklcpRLDtE2c45kkgfFotqBykv0f4kkECQ2fpyHD5pJW4+EVT/RniCy6pBJ69pJf4ETHEepLVEUqiWIp5ev0V4gognTlwG/tJOO9pl/jET6Ha/6sR/dmyQPJMwCPWEmLQYtqADlek+pJIMhAYtkxtTxmeQ9KR1dJ+RCrxx+u4xPlo7RKwSdglId/wDDHM8S9M9XNNParQCw5VAdPdSPlHjorqrUpnrrpVLhnqauPThlMseIL+QVAD0z41MXpiFUDnSXS7vfqYH8H0RQkrdalLAdSiSohrBz3vGf0tf83Lv7SYunqNtZN6mnSqHjJyM7UnPKfFKf9IzK1B6J/dEOuKFR7DwFnbnoP3RC7c9B5CKYUAW9seg8oYzT3eUVwniAn2p7vKEZx6DyiENAFnaHu8oXanu8oreFFBZ2p7vKF2nh5RB4Z4AmV+HlCM07t5RB4kkOQOpaAJS5pFxaGK3y0T7A9Rnr3tvCMks7jD77/CAI9p4Qu08PKK3hzEBLtPCH7Tw8oreE8AT7Q93lDFfcIg8OTAEq+4Qq/CIPCgCdfhD9oegiDwzwBb2p7vIQ3anu8oreGeACugnDdCD4peNK9coTEU0pFQslIANxloH6LMWzT+sT4j8RAHoK/SWd0l/uq/3Qw9JZvRH7p/3QMKPGI0+Mcb2ezbXQS1HHZq2dg2KahnqKiD8RGuT6RUgAyVE7kTEgE+C5SiPOAdMSCf6eMtXclVMHN63jFSbO1NIT0y5PyjLwfSoKguYaiC4Ts/2jv4R2C+GJ90ecNL4ckHA/r4RworVKhI9Wp9O6nLZOTqVHYxk9JVqOnNj7ST84NSZYHSK9bJCkEWY2IjS1FMwR6DhqTzlUUkx1E30bl7LWn4gj5vGeZ6MD9qfIR6FrUnjf0eojnnhQdPo2n9qf3RC/6bT+1V+6Ib1BPE1ev9ALwng7/wBOp/aq/dEMfR1P7VX7sN6keJq9f6A3hPBs+j6f2iv3RET6Pj9oryEN2keJq9AWE8GvUCf2ivIQv+nx+0V5CLu0jxdXoCvCeDP/AE+P2ivIQvUI/aK8hDdpJ4up0Bnh3gx6gH7RXkIY8BH7RXkIbtI8XU6AwaHgseBfbV5QvUP2z5Q3aR42p0CXhEwX9Qf/ALD5Q3qH7avKG7SPF1OgQ8O8F/UP21fKH9QD31fKG7SPF1OgM8J4M+oB76vlDHgI99XyhuUjxdToDwngt6i+2YXqL7avKG5SPF1OgS8KCvqL7Sof1F9tXyhuUjxdToEPDgwW9RD31fKEeBfbV8oblI8bU6M+hzE9QOdJ7x+Ma5PC1JxMWPAj/SLE8N5golSj1UpzDdpKvpawkdUIkNRCGnHSJCV3RyuR6bKhCeI3yuHahYdMiaodQhR/ARgEs5Dg5BGQe6CMnWgBlaaSs+8rtHPjTMA+UZdXRbGYvXkn3T8TC9eSfc/zRyn5uO+EJA6QhHS6o6ocel+5/mhevpfueZjluwHT5wuw/q8IQuqOo9ey/wBmPOG9dy/cHnHMdjC7EQhC+o6Y8al+4POF67l+4POOXVJHf5w+kkOttmiwjO5VJ0w4xK9wecIcZle784AcU04SUNZ/9DFAliFqgblUwdMeMyvdHmYirjMv3R5xzhlQ0uUIWou5UdF64l+4P3odPGZfuDzP+sc+mUOkJUoNiJai7jOiPGZf7MeZhDjMr9n845tcoOLRLsQ8LEN1nReuJXuQ3reV7nzgD2QhJkhsRLDW6+g4eLSvd+cMOKS/d8bmAhkjpC7IPjaFo3H0Hk8Tle784b1jL6fOOdVKvExKzFsM7r6D54jL6Q3rCV0gCuWAIh2YaFhXqvoPnXS/6JhvWEvp84Aplw5l3hYTdD/rCV0+cP6yle6POOdUi7RUtEWwm6zpjxKX7vzhHiMv3RHJzRBfS6JBQklIJIDmI6UhTqVVOEEzxGV7oiJ4hL90fOMZ0Et/ZGO+ErQy3HIIkI1NX5+jV6wQ+IccRR0/GMy9BKDcghfmEtjyJtDA/n+fo1Hiien4/wCsR9aDp+P+sYpekll+RPlEZOklkkFA8ouCTUEPWyYXrYd8Y5eglt7CfKKxopfuDyhgTX8FTQ8bvzMdPnC/NR0/ryjMo1azA8O8bvzYdIkNMOhhItYPJ7oY+EEBpR3wjpvGLKJawap+kT0Q5j4fxjWvTd39eUVy5bL/AMP8YqZl0wyHFXeW/wDVjFDW+MaOMD+z/rYxme0bOftk1C0KULQ6oeTENex0i8JQh05hlxDUYIryIsAvFa8iLmikRHaHQLQki0OnEZNpDEX+EJrw5z8IcZMUNGdeYtSMxWrMXJ3inNclc4WMQCbRZOxEALRQ1kaWISxzQ8qGWOaBPQlC8Z5m0aV5jPN2iIMzzxaOh0aORI6ARz2oxHTaVPKPCFbwXRX8mRKeYeERnjmEW/SiE/2h/W8cpPQ0PPTiLKQxiM7aLimxiFgyadGYhpkXi7TbxGR7RjUmY4JadNvjGdLRpkeyYpliCDRq7QdPwhV90XFve+UOw6/hHKTtaU1Hp+MO5i8N1hEDqfOJcW0oKVd0MUH/AOou5f6MMaY1JIM5QYyrT+sv7v8AExvNMYJqh2lvcH4mN0nKtGbjH/b/AK2MZkxp4x/2/wCtlRlG0dfR5v7MtWbRORFczAicjEQ0uSxAvCmCGlG8OuIdPRFQuIuCYoJvF4imUIC0OgWhH2YdOIydURp5ojTcxYMxBrxUZZnUm8aFC0UHMXnEaZzpRCbFbWiycYrOIEfI8oRGZmFKhLzAnoSxf4RRNTcRevMUTMiAZm1Ijp9LiOY1MdRpzaM6nBvQ5ZEDmiM32hDo9uGnHmjl7O74JzhcRb9ExTP2ixR5TENQUafeISTzGJ6feKpXtRvs59Fsr2TFCFRfJPKqMyTBMM3KlEQ4lmFCjlczvahzLMISzDwoqqYtQuy74fs4aFC5ktRLsoHzw07/AAA/5lQoUbpeTlqLBm41/wBs/wBYMZRtChR29Hlf/TJTYtkG0KFE9G1ySlGJnMNCjPs36IH2ov6woUaZKRieWJDEKFGDohgbwt4UKKiMzqzFysQoUbZypK5piD2hQoIlXI0mEs3hQoE9EpmYzzcwoUCszajMdRp8GFCjOpwa0eWQR7URmnmhQo5Hdkp5uIks8ph4UQ0U6bBiqU1UNCjfZzfoukHlMZiYUKIis//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEhUTERAQFRUXFRAYGBYQEBIWFRcYFRUYFxUTFxUYHSghGBolHxUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKBQUFDgUFDisZExkrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIAL0BCwMBIgACEQEDEQH/xAAcAAEAAAcBAAAAAAAAAAAAAAAAAQIEBQYHCAP/xABJEAABAwIDBAcDBwsCBAcAAAABAAIDBBEFEiExQWGBBgcTIlFxkTJSoSMzQmKCorEUJDRDcpKTssHh8FPRs8LS8RYlVWNzg6P/xAAUAQEAAAAAAAAAAAAAAAAAAAAA/8QAFBEBAAAAAAAAAAAAAAAAAAAAAP/aAAwDAQACEQMRAD8A3iiIgIiICIiAiIgIiICIiAiIgIigUEVAlaQqetavqADEKenY4AgBhllsRpd7iG8smniVjmIYlUVN/wAoq6iYG92vmcGEHcYmZWfBBvXFemWHUxLZauEPF7sY7tJNNo7OO7r8LLFq/rYiGlNSTSHc6dwgZ6d5/wB30WqY2NaLNAaPBoAHoFNdBluIdYuKS+xLBANPmYA92n15S4fdVD/4zxb/ANSmv/8ABR29OxWP3UC5Bl1F1j4pHbNJTzAA/OwZXniXRuA9GhXik63ZRbt8PaRbV1PUgm+75ORrf5itcFyhmQbkpetbDj86KqHT6dO94vvF4c3xsr5Q9NcLm0jr6UnTR0zWO12DK4g34Ln8OUklnCxAIO4gEeVig6ga8HYQfIqZct047P5pz4jcH5CR8Wo2EhhF1e6bpnilM0uZXTODQ45ajJM02F7ZnNz2+0g6JRU2GyufFG99szo43Oy3tctBNr7rlVKAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg5Mofm2fsM/lC9rrwovm2fsM/lC9kE7ZXDeV6CpdwXgiCoFUN4Uwnad6pVK5BXg32a+WqlJVlrGgu1A9FVUqCuzJdSIgnuvKvPyUn7En8pXqo9mHd07HFrT5OIb/AFQdPUTbRsHgxg9AF7KACigIiICIiAiIgIiICIiAiIgIiICIiAiIgIUUCg5Opm5WNHg1o9AvRSx7ApkBERBBQKKBQUdV7Sq6ZUlT7SrKYIKhRUFEIIr3oos8sLRvnpR/+7L/AOcF4K4dHherpR41VL/xGlB0uiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIOT2nTmfxKiSpG7/ADd+JUUEbqN1KiCKgiIKOp9pV1OFQz+16Kvphog9rIoogK9dC23xGjB31DT+6x7/APlVlV/6ARF2J0Vt0shPKnl/sg6IREQEREBERAREQEREBERAREQEREBERAREQEREHJg3+bvxKioE6nzd+JULoJkUt0KCZLqVLoKab2grlTDRWx3tK8UjdEE9lDKvbKmVB5ZVlPVgP/NIB9SpPoy1/vfFY3lWX9VEIOJMPu09SfV0Q/qUG70REBERAREQUeJYpT0zc880UTfGV7WgnwF9p4BYvWdZFG24hZNN9YM7NnmHSWLhxaCFq/p9K5uKVYfd+WSPK5ziXMa+CJ+RpNwGjNsAHFW6Kra7Y8A+End+N7fFBtRnWQ4n9FZbhUG/xjtfmr3hvTmhl0fIYHe7UZWjk8EsPqtNtDxtbqed/LxXhWYtDDpLKAfcb33/ALo2c0HR8cgcAWkEHYWkEHmFMuXoumE0BvRMlgOvedN2bDfe6Bvcft332rfHQfpEZ8OhqauWJr3doHuJaxmZj3NPD6PwQZSislL0vw6V+RlZA4m1jnGV19zHnuvOmxpKvQN0EUREBERAREQEREHJbtp8z+Klup3D8T+KlIQQul0UEEbpdQUCg8R7avlG3RWOH2lkFIO6g9bJlU1lMAgkyrM+qOInEHn3aWT70sdv5SsSDVnPU+Pzup4U8H3pH/8ASg2yiIgIiICIiDSnWf0Urfy2arip5JYZRC4mHK57HMjbGQY75iLMBuAd61/HIHXsdmhGwg+BB1B4HwXVasuO9FKGu/SaaN7hez7ZZG38JG2cPVBzNicz2QnI97RdlwxzgCC7UWGg5WVpezK8tboLgaaE38XbTtW7Mf6mS8EUlXZp+hVNLra3GWRlidn0gTxVThPUxTRgvq55Jn2Jyx/JRggaHTvHYNpQauwzCYB9PtXe6CYx/D0cdm88lXShtxdoGX2QRo3yGxuvha+1WKlOaNpNjdrSdBYkjXTYq1lVINM2Ye6+7vS+o5EILj+UnZdV+E4vUU5/N6ieLgx5LPH5p4LPgrKytb9JrhxZqPR2voSq6kljOx+Y+B7p/dOqDYeD9YdWLCWKKcaXcy8TwN5PtNceHd5LMqLpdSSWDnmMndK0gfvi7fitNx1luCqoa/ig3tFI1wDmkOB2FpBB4ghTLStFirozeN7mEm5Mbi254gaHndZJQdNqhmj+zlH1+4795ot91BsZFjdD0zpn6SB8R8Xtuw+T23A52V+pqqOUZo3se3xY4OHqEHsiIg5QAuNFAsWy+vLCKalZDUQRRxPkme2RzW2a8GNxu4DS9wNdqxPof0VrMVpn1FP2ALJTGY5HPbms1rszZLEfStYjdtQY3NFmBHjwUscZAsTe29X7Fuj1ZSH84pZ2D38hfHu/WMu0bd9la2tDhdpBHiDceqCmspXKodGpHMQUtMO8shpR3VY6RuqyClHcCCdoU7QpSQBckADaSRYcTfcrvgPR2srbdhCcht8tKHMitvIcReT7II4hBbgFsDqbgu+qmDXZXNpmNfY5XFhlLg1x0dbONQsJk6I4u+sbTvo3/k4mjD5GhuR8QeM5LyfZLb6Dy1XQTGgAAAAAAADYANgCCZERAREQEREBERAREQYbjfVlhlTdzYTTvN+/SER6+JjtkdzasDxnqlrormmliqG7g/5KX+rHfdW7kQcs4jRzUzstTBLA4m1pmFoPk/2XciV4ZRw9F1TUU7JGlsjGvadrXtBB8wVhWNdVmHT3dC19M831pzZlzvMTrs9AEGkWVMjNA88A4kjysd3kQqqPEPeBHEH+h5bFk2NdVuJQaw9lVN/9u0UlvHs3nKeTlhlbE+B/Zzxvif7szHMcfLN7Q8roLrHWX2H/AH9FVRVpWOkW/wA/p8V6xVThvv5/7oMpixAhG9JWQvuTLE7T5QNkjB49o32vwWPx1436ef8AZVP5U4julh8Q4Egjfs9nmEGxMI6eT2BEsU7PF4ueUkZ/Fp5LJ6Hp1TuHyrJIzvIHaM5Fl3erQtJiggc7O0OY/wB+Jxbt4NNt/wAVWUjqhhF6hsjbn5yIB9uDmEXP7SDfcU9LWM7roJ2bxdkjeY1VXTU0cTcsbGMb7rGhrfQLR8dXrfUEbHAkOHk9uo9VkOG9LKuO1p8492dof6PFnDndBtMhY3jPQPDaq5fSsY87ZIPkpDs1LmWvs33VPQdN43fOxObxjd2jfTR3IArIKDFaef5qVjj4A94ebTqOYQayxbqfeLmkq831KtgvvsO1jA+LSsJxjodiNLczUcpaL9+C0rN+vd7w011aF0gpXtBBBFwQQfI7UHKNO0bQbjx/zas06PdEq6sA7OAxs/1akOjZ9lhGd/jsAPvBWzox0DxIVdPFNRTNbHNEZJDl7MMieHEh17OvlGzxXRwQYZgHVxR05D5/zmTQ3naOzaRsyQ+yLeJzO4rM2i2xRRAREQEREBERAREQEREBERAREQEREBU1dQQzsLJoo5GHa2RgcPQqydPOkr8NpxMynMxLwy13BjLtc7PIWtJDe7bZtcFrbDeuGuDs09PSSx6fo5kjcOILnPzeGoA4lBleM9UtDLc0zpKV220ZzxeXZv8AZGv0SFgWNdWuJ01y2NtSwX1pjZ9uMTyCD5OctlYL1oYZUaSSupneFUAxvKUExkfaWZRSteMzXNcDvaQR6hBypM0tcWva9jxtZKxzH+eVwB+C8nM1v4ag7CD4grqTFsFpqtuSpgilb4SMa63EHaDxCwLGep6mfd1JUSwH3JPlYvR3eaPJyDT0dXI3ff8Aa/3GvrdVkWKjfcfeHMjX4K8Yz1fYnS3L6ftm69+kJkFvExkB45ByxYEXI+kNrTo5v7TTYjmEF9jrb7xyNwPO2zmqmOr5+Sxpgtr6L2jmI266anW/DXafVBlUNcdxVU2vvbNY2sRmsbEbCPA+SxWKr3XH2h/UD8AqplSePIg287HTagzzDulNRFbJO+2ndl+Ub6u7w5Hkslw/p6DYTQ3+tA4H1jdYjkStRtquPxCg7HLaDvHiTb+6Df2H9I6SchrJ2ZzezJLsk42Y+xPJXRc1Oxt7vacSPd+j6K44V0sqqc3iqp2j3HydrFvsAyW+Ua/RLUHQqLVWFda8jR+c0zZPrUhyH+FK63h+sWZYT05w6pIaypYx52Rz3ikJ8A19s3K6DI0UAVFAREQEREBERAREQEREBERAREQQcAdD8VimPdXeG1ZLzD2Uh/WUx7NxO4uDe67mCssRBpDHuqiuhBNNJHVN91wbFNbzN2PP7qw+KrqcMkyh1VRSe6czWu8TlN2Sbdtiun1TV9BDUMMc0UcjDoWyNDh6FBqzoJ1lVdRVxUc7Ipe0z/KsaY3tDWF2ZzRmY4aWuCNoW3FbcHwGkowW01PDCDt7JgaT5kalXJAVpxro1RVotU00Un1nNAePJ47w5FXZEGqsb6nYzrR1T2bfk6kdq0+Ugs9vPN5LBMb6G4lR3M1I9zB+spvlmEeJDe+391dIIg5PZK1wu0g+Wu7YfBTNcR/ngAdF0hj/AEPoK7WopmF3+oy7JR5SMIctf431OvF3UVVfbaOrbfdsErNfVpQazE536+O255jX1KlLGO2OLeB/HQfCyuWNdGq6j/SaWVrR+sYO1iP22Xy/aAVna8OFwQR4gghB6Opni5AzAb4yHW4kDUc15sl4+hUQ4gggkEbCNo4g7l6OqST8oGv4uBzfvts71J8kEG1BXu2ov3SAQdoLQ4HkdFRyvZa47QG4s05XC5NrZ9PEbW+qpxVkaaAg65joB9UDaSDtP9kGQ0/SyooNYaqaL6gcZGePzD8zWjbr3di6I6NVEstJTyT2Mr4IHPyiwzuYC6w3alclVDxMcrNfEgaC+8lbQxHrKrHRshprU0bI2MzWa+d2VoF7uuyPZsAceI3Bu6qxCGItEs0TC72RJI1pd5AnVVK5hbWXc5zgHOfbO+TvvfbTvPdcu5q5YTjk9N+jzyw7NInXjH/0vDmDadjd6DoxFqfCusyqbYTRQzC/tMJheB5HM1x4d1ZZh3WFh8thI98DjuqGFrf4ouz71+CDLEXnBOyRocx7XNOocxwcDxBG1eiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIggQsYxzq/wAMrCXPpmxyHbJT/JSE+JLfa2bwVlCINL431PVTNaOpjlbuZUjI/wDiMGU82hYFjGDVVGbVNNNEPeewmM8e1bdtud11KpZGBwIcAQdoIBHoUHJUtrE30GtwdNNRryXhgHRyvxOTJBE5+ozG1o2cXvOjfGx18AV0hiXVrhM7+0dShjr97sHvia/xDmsIB9FkuHUENPGI4I2RsboGxtDQOQQcz450eOFT/kr3MkeIonvcwOAu/MC0G4JAy6F19uxUZc07CQfrWI9Wi9/s81lXXG8DFX5ri8NMG3BAdlDy7KTttmCwxwQVAB2jUby0ggedr5du+yjHJ4HTgRZUZ011B8RoR5HcoGrcNoa7ZfMCHH7bSHHndBd4Zz4q601U7ceCxaPFIfpOljO+7Gyt5EFhHoVW0uMMd3WBxG97xlv4Wbc/FBkUFa+F2aBz4nm5vTv7Mm21zh7DgN5eCPM2C3x0eqJZaWnkmy9o+GFz8gIbmcwF1gdguSucBKSHkbcrjtuSQ02ud/Dw3ALpbDIskMTfdjjHo0BBUoiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIPCsoopmFksbJGHa2Roc08isExrqiw6a5p+1pnH/ScXR/wnkgDg2y2EiDn7G+qrFKcExiKqaN8JySfw3m3o4rB6+lkidkmjkidqMszHMPIOAvyuuuVS4hh8NQ0snijkYdrZGNcNeBCDjetZY/7K44OLC//bYt/wCL9TmEzkljZ4CdbU8tm8mPDgOSqMA6qMLpCCY5J3A3Bqnh4B4RgBnwQa96DdDJ69zXva+Ol0LpCLGUA6xxA7Qdhfstsudm+2iwARrQNiig/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQDxAQDxAQDxUODw8PDw8QEA8QEA8PFREXFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0NFw0PFS0dFR0tKysrKy0rKystKysrKy0rKystKy0rKysrKysrKysrKy0rKy0rKysrKysrLSsrKysrK//AABEIAL8BCAMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAQIDBAUHBgj/xABFEAACAQMBAwcHBwkJAQAAAAAAAQIDBBExBSFxBxJBUYGRoQYTIjJCYbE0UnKywdHwJDM1YnN0gpK0FENEU6Kjs8LhF//EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABkRAQEBAQEBAAAAAAAAAAAAAAARATESAv/aAAwDAQACEQMRAD8A7hDRcESRDRcESAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEQ0XBEkQ0XBEgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABENFwRJENFwRIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAARDRcESRDRcESAAAAAAAAABEmkst4S3tvRI8vtjlC2ba5U7qFWSbXm7fNeWV0Nwyov6TQHqQcf2vyzzeVY2eN26pdSy0/fSpv/ALnjtp+Ve1b3KqXVWEX/AHdD8ngl1ZhiUl9JsvlK75tnyks7P5VdUaLxlQlNeckv1aa9KXYjyd1yw7Ni/QV1X99OioL/AHZRfgcbobAby3uy8vrb6W31mdDYUFqa8pXT48slk/8AD3i/hoZ/5DaWXKjs2pjnValFvoq0Z+Lhzku85Atk0l7PiUz2bDqwPJX0FY+UVnX3Ubu3qN+zGrDn/wAucmzPmOeyl0Nou2ta6t/zFzWpJdFOrUgu5PBPJ6fS4OB2nKBtWjrWVZL2atOnLxSUvE3llywV4/KLOnPrdOc6Xg1InnVrsAOf2PK1ZTwqtO4ovpbjCcF2xefA9BZeW2zq3qXlGOeiq3Rf+4kIV6AFujXjNc6EozXXGSku9FwigAAAAAAAAAAAACIaLgiSIaLgiQAAAAADV+Uu3KdhbTuKsZzUcKNOmk5zk9Es7uttvRJnJdrcrN9VzG2o0rVPK5zTr1V1NOSUVwcWdC5SvkcP3iH1JnJqk973J8UsmsxndanaFxe3r/Kq9asnh82pN+bT61TXorsRXb7A+cbSNdL2V2bi7G5j05XwNsrFDZUI9BlRopaIqjVi9JLtePiVAUMtsulLAtNFDK5IoYFDRQ0VspYFpoolTReZS0BiTtYvoLM7JdG4zmiloKwaVKpTlzqc5Qa9qLcZd6NxZ+V20qHqXdZ4/wAySrf8iZhtBUm9ESD1Nlyr30MKrSoVV0twnCb7YvHgeh2byuUptKtaVYZeM0pxq9uJKP2nK691Sh60lJ/Nh6Xjp4mHPbMl+ajGHVJpSl47l3Mkxbr6f2XtKlc01Voy50W8Pc4yjLCeJJ709670ZZzrkNrSns+5nOTlKV/UzJvLf5PQOimdaAAQAAAAAEQ0XBEkQ0XBEgAAAAAHlOUhfkcf28PqTORVdWdf5Rvkcf28PqTORyg5Swulm/njG9WCC7OhJezLjh41wWjSDIU2tG1w3BlLAuq5kunPHD8StXfWu7cYxAVlq4T61xRVz0+ld5hEBGa0UNGMpNaNrtIncSSzueOtfcBkMhmlrbalH2Iv+YsPygqdEKa4qT+0EegUG9FksXFxTp+vNJ/NXpS7lp2nn6+1K1RYlNpfNj6K8Ne0xCLG6r7bWlKH8U9/+lfea24vKlT15tr5uke5bjHAEkoglBXdeQj9G3H7/U/p6B0g5xyFfo2v+/VP6egdHMb1cAARQAAAABENFwRJENFwRIAAAAAB5flE+Rr9tD6sjkbm4yynvT3HXeUP5Gv20PqyOQVtWb+eMb1k0NpOOcxUsvnatYe77kXf7bRm8zjjOd7SftOT097Zq2QzSIZMKUpYUU5NyjBJLMpSloktW3gghPG9NrDymt2GukKiUWtU1nrWNxBed1Pm81zk4+h6LeV6Dk44zok5y3frMtyeW317924ChkF+jGL3SbWiT+Le7gVf2R43SUt6Sw8rf+EBist1vVZfdJ64bXQ0ngsVvVYHnrzUxDMu9TEIK4lRCJChAAElSLeSUwO88hX6Nr/v1T+noHRjkPI/t+nb2VWnN75Xc5rg6NKP/VnSKG36M9JIxvWsbYGNTvYS0ki+qiejRBUBkAAABENFwRJENFwRIAAAAABqfKexVe3dN685OL6pJP8A9OJ7apu2qONaM4b90nCXNfad42j6n8S+DNPVgpJqSUk9U0mu5msZ1xKnWjL1ZRlwaZWo5aXXu37jpu0PI+xr5c7aEW/ap5py/wBODRXfJzH/AA13Wp9UaqjVj9jNVI8hOhJaxfx+BaN3deSO0aOebGlcJf5VR05Pskai5q1aO65t6tP31KTcVwkhRaGRTuqM3uePdGSfhLf1dxW6aeMSXTul6OO38aFFtlJcnSa1XQnlYawy2BcVeXzn27/iY9XRlwt1dGBobvUw8Gbd6mIQVIMIhsKZKWw2IQcniKbfUlkCGyaabaSWcmytNhzlvm+YurWRvrDYsIaRy/nPeyUirYNjKFPDe/nNvGi3LcektKU1o2ZOwtmZhp7T+CPU2WxtNxjWmrsfO9bPR2Dq7stmdabKS6DZ0rZIC1bc7pMyJKiSAAAEQ0XBEkQ0XBEgAAAAAGLtD1P4l8GaiRuL9eh2o1PNyzWJqgFfm2UNBE87t4kPDWGs/jqIAGp2h5LWVfPnLak2/aUfNy74nn7zk2o629evQ6otqrDue/xPagDl135D31PPm5ULhe5ulN9j3Gju7S4ofn7WvT/W5nPh/NHcduyQWjhNO6hLSS4N4fcyurozsN/sC1r/AJ63pTb9rmJS/mW887e8nFrLLo1K9v7oz58O6X3ikciu9WYh0i65M559G8T+lRWfBmJ/8yq9N1B8KePtFHg2y5QtZ1PVi373uR0K25OuZvcozfXLf4GzpeSMl0oUjwFpsHpqPne5bkb202corEYpcEevo+TeNcGfR2NGJFeWttnN9BtrXZnuPQUrKK6DIhSS6AMzya2avNPd7b+qj0VK3SMTYSxSf039VGyMqhIkAAAAAAAiGi4IkiGi4IkAAAAAAs3azHtNZKmbaqtxiSplxNYW9DznWvxkyZUi3KkVGG0FHPekZDpFDpgWXFrVEF3mspcQKAVqPXuDp9TyBbIloVuJTJbgMKqWi9VRawFSiQkSogQSkVqmXYUQLUYF6FIv06Bk06IGbsmOKb+k/gjNLFmsR7fsRfMqAAAAAAAAiGi4IkiGi4IkAAAAAAFDporAFl0ih0zJAGI6ZQ6RmtEOBaNe6JQ6BsXAh0xUax0Sl0jZumQ6IpGs5jKJUjaOiUugWkaOpRLaoG6lbEK1INTGgXY25tI2xcVADWwti/C3M9UitUgrDjRL8Ld8DJjFIkgphHCwioAAAAAAAAACIaLgiSIaLgiQAAAAAAAAAAAAAAAABGCQBGBgkAU80c0qAFOCcEgAAAAAAAAAAAAAAAAD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSDxAQERAWFhUVFhcVFxUVFRYVFRYVFRYWFhYVFhUYHSggGBomHhMVIjEiJSkrLy4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHyUtLS0tKzctLy0tLS0rKy0tLSstKystLy0uLS0tLSstKy0tLS0tKy0rLi0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xABOEAACAQICAwgNCQUGBwEAAAAAAQIDEQQhBRIxExRBUVRhcdEGBxciMlKBkZKhorHSCBZCVXJ0o7PwFTM1YsFTc4LT4fEjNESDk5SyJP/EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAcEQEBAQADAQEBAAAAAAAAAAAAARECEkEhMRP/2gAMAwEAAhEDEQA/AO4gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFnGYqFKnKrVnGEIq8pzajGK423kjUOyXti0cPGpDD0p4mtFuOrFatNNbXKrLJxX8ut/U4p2UYzSmkqmviYzcU7wpRsqVP7MLu7/md3zgdA7J+3fCnV3PAYdVoxedWq3CMv7uKWs1zu3RwkL3dsVyKh6dQ0JdjOL4MLUfkPa7GMZyOr5l1gb13dsVyKh6dQd3bFcioenUNG+bGM5JV83+pT5s4zklXzf6gby+3ti+RUPTqDu64vkeH9OoaN83cWv8Apavm/wBf15Tw9BYpbcPU8y6/1mBvnd1xfIqHp1B3dcXyKh6dQ0CWiMQttGflt1/q7Lb0dVW2nL1dfN6wOh93XF8ioenUHd1xfIqHp1DnW86nDB+dc3P0+c873lwr1x5ufpA6P3dcXyKh6dQd3bF8ioenUOcOhLi9a6zy6cuL1x5+fo9YHSe7ti+RUPTqFV29cVyOh6VQ5pub/Tj19BVUnzeWUev9W5wOld3bFcjoelUHd2xXI6HpTOauk+bySj1/qxXcpc3pR6wOk93bFcjoelMd3bFcioenUOabg/1Ndf697cXzemusDpfd2xXIqHp1D3R7e+I1o6+BpON81GpNStw2bTVzmG4vm9JdZR4d8S9KPWB9S9iPZphNIw1sPV79K86M+9qw6Y8K/mV1zmxHxzQhUpzjVpVNScXeMoVNWcXxxkndHXOwrtwVIatHScVKOxYinq6y/vaa8L7Uc/5XtA7UDC0PpajiqMa+HqxqU5bJR41tTTzi1wp5mY5JbWBUHndFxrzjdFxrzgegU1lxgD5tp1M30/1JWhKk84zqRtwShCTee1OM4pZcD6b8BrirWk+lmbhsRmSzfVlbVRlFLvajfFeklwvJvdcsrefyGdh6+Sv5bGvYbFZZsz6OKQkz1LUw6hj4jEKOcpKPB3zSz4szF3yuP1nvCaRnCprQlZ6sle0XlePGuY0jHr4+H9rD0o9ZGYnSEPHh54k5ieyPELZV9in8JFYnsqxS2V/YpfCRUFiMdF/Sj5JIjq+JXH60TGJ7McYtmI/DpfAROL7Occk3vtr/ALVD/LAj61fn9ZiSnf8A3L0+2BpFv/mvwqPwHn5/6R5V+FR+AGMdixkfP/SPKvwqPwD5/wCkeVfhUfgC4x7FNUyfn/pHlX4VH4B8/wDSPKvwqPwAxjpBmR8/9I8q/Co/APn/AKR5V+FR+AGMRlDKq9l+NxEXRrV9aEtsdzpK9mms4xTWaRihFAGeW1suB7glfvr25ld+srJRtk5X50ree5aKNgd/+T9/DMR96n+TQI7t6QjLFaKU6Uqqtib04+FJf8F2Xmv5CQ+T5/DMR97n+TQIzt8wcsTopKLk2sR3sZajf7nJT+iyX6suXXKv2TUc5Qjh53Wbjq3klJvVbyyVrLnafQkNHy3OdTcJOMW1KaXexadmpZZNPnJJ4eSbhPD4hpXap751VBWTbVS7Um1a+StqrbfLGxdNunUm6VaVkluk61tVauUZU7tzSSsnfNRWXAVHvLiBa1gBWVTvnnwsyaEZSjrLZnbgvba78EU8m87vJZ3cYmrUs5eU67ofQVCeDp6rV5QilfbqpWjfnfhPnkwNB7GcalVqqTTcE3+7g1bmlNSk/Ky/ovTUJ1ZqtbUd7ShCFKrF8yj3tT/En0LaWtP6AqYStOaXeVISimtl+Be81x6Kryt3kklsdmvKBt+D0vCprKM4ys7ayi0pLgaTeXOs7Phas3nYXEXlt+i/fE1TB6MdCMqjlZtQnq80pypSS6ZRUvIiW0dXvJ/ZfvQEhi6xDYusZmNxbas7Zc1vcQ2kMZdZ7Fz5JcNlsRBhYyvZNtmvV6+vLNtR5ld+a6PePxeu7LwV6+cxAse6UNaSitrdlzt5JcxfWAna9lw/SjwWbe3Zms+G64zHpTcZKS2pprpWZfjjZp3TV87ZLLWSjlxZRXmM3t41M9eJ4WaTbjZK19mV0mvOpL18TLJeniZNNN5O18l9FJLzKPrfGyyWb6lzxeweHdSpCmnZzkop9LsZ+l9A1MPGM5uLUnZard72vxEfhq7pzhUj4UWpK+ead1kZekNL1K0FCagkpOfewUbye1u215nPl/TvMzPW+PTrd/fEeAeqc7NSyyaeausuNcJ1YXcH4aJK/wCuF8yRHYed6jeWd3lks+JcBKYLw8nZqMmvtW1VbnWtdc6RUqYwdHDRoSlKSnWva0v3cHbwYxX7yXG3eP8ALbvnJ4TTEJYOonFd6v7Kgl0amq00axjdDThJwgm1BuKa4WnZy8rVzxS13CpRUXrzcVqpZvPPII9YWnviTjFRjJ+DZakJPgi43tBvga72+1K91hyTTaas07NPJprJprgZ0TsW7CnGF61ldbOk1Lsww6hjJq920nL7cZSpyf8AidPW6Zgdo+T3/C8R97n+TQIj5QlSKqaNckmtXEZSdk86HD5SX+T1/C8R97n+TQIjt/6QrYfFaIrYeTjVjvnVaipeEqMWtWSad1JrNcIHK5aRwq72pRkrNtQp1YKnG/Ep05u+XHwItVsfSmpKFJPYlOpUTqRyasmlGLX+H6K5700bgalOU+9pylazcppK045xSazybuYeIoVaKqyh3sZXpzSetZZXV2tl+H9MJnfUeP1MEfYAKrzl0sncL2TVIUKcE2tVavo/pEEtXXlrNpXezjuWqqWxO6fkAkp9leJdRSVWVoPWtfJtca4Tc9HdmNOtBbpBJ9BzWjqx1r3zVtjfuGHcllG653lboXGBs2ntIwq4upubepGEKfNdSdST8j1V5y3hcXGm3KUkk1a8m7Xydsk+IiqEVFFvSXgL7S90gJvE6UpyWVWkvLLP2CIxsdfwcRRS59eV/I6diKsVSAuvRa275o/iL1ag/ZS5TR89T4C3YWAufspcpo+ep/llYaLS24ig+l1f6QLVi48PPVU9V6ru0+aO19CsxuC7X0fCT72rh49Eq7/+ostfspcpo+er/llyGCqOyVOWd9qtsWs9vMrlhodtpJj3+ylymj56nwFP2WuU0fPU+A82KMC/LA3Vt8Ye32ZJ5c6p34ClPR2q7rE0PLryXmdOxYAF+WDs9bdqMnbwYayb6FqJHipfg28HTt/oeaazPbA2qPZHCEVPVu2r58bIbG9kVerPdVNw1PBUO9sntvbb5SJqc+a5tq43zl2lOChKLbu/5X/QDaNFdltV2UpNvZzmvaSxbrV6lV/Sk7dF2/6sxaUtW+rdNqzk8nZ7UktnTfzF/VhqZN62WXBz8AHfPk9fwvEfe5/k0CD+UTGo6+idxUnU/wD0OOom5XW4vJLmTJz5Pf8AC8R97n+TQIX5RMXumjJRlKLSxFnF2avuC2+UDmug9IynruFV05u2soylG6hFLWyTyyb5iMx2LqT3aFG8o99OpKF7OLte+S72/nPWj9Cbrras2rJ8KWVm3xcCeXCY8sEoylFSlwxdna6TtxbAMooZG4rnKAYdXwpdL95WMY+Or22WfUUq+FLpfvM3A1HTjKcJWySfBdtp+VJL38Zrjx2pbjCaV9t+f/c9RZXEtOc3FWi22lwJPgRbTM1V3WLeKziule5i56hDWy8v684GHqFVTM9YU9rCgR+oNQkd6srvV8YEbqF6NeaioqWSTSVovKV7rNcN2ZqwrG9XxizRhLEVL62vndvYtrjqPg8XIsuLJPejK7zZMgi9RlNRkpvQo8GURmoymoyT3oUeFAjoRsz02ZNahaLZisChSxUAVp03J2im3xI8ktovGUoQcZUIud290c5xdnbJWklcj8ZUUpycYxiuBRTt7Tb9ZJfo758nr+F4j73P8mgRPygoa1bRkXKMbrEd9N6sV+42vgJb5PX8LxH3uf5NAiu3/TUq+ioSmoRksQnNpyUc6Geqs2Ucz7H7PdLxT6ZOK2PiazI7FfvKn25e9ma9GU9eUVjI2V++UJ52t9BO628PEy1PA01TlPfMXJbIKEnrNq6WunZbfIB61ipaAFnE4fVqTi3nGUovpTafuLe4rjPrKv2N4KcpTngsPKUneUpUKcpNvhbcbtnPNJdq6axFapRjQnTnKUowcVBw1m3qqOrq2V7KzWzYBxBUVxldxXGb5j+1HpSdWbhTpRi3l/xkrLoSyNip9qDEVFQVSpQoqK79wTqTl5LRXlbA5DuK4zzLvHdPgt60fVtPsRwCilvDDOySu8PSbduFvV2lrF9hWjqsdWej8Pa9+9owg8v5oJMD5YWLf6RXfkuP3dR9M9zXRX1fS9rrHc10V9X0va6wPmdY2Xje7qK7/l4z8y6j6X7muivq+l7XWO5tor6vpe11gfNG/peM/UU37Lxn6uo+me5tor6vpe11lO5ror6vpe11gfM+/peM/V1Df0vGfq6j6Y7muivq+l7XWO5tor6vpe11gfNG/peM/UU37Lxn6uo+me5tor6vpe11lO5ror6vpe11gfM2/Zcfu6ijxj4/15j6a7muivq+l7XWO5ror6vpe11gfMc6zktW+23vR6eGXjH0/he17ounNTjo+hdeNDXWeXgyuvUZ/wA1MB9X4X/16XwgfKG9V4w3qvGO99mHasWIxEK+DlRopJKVB01Cm7XzTgsr3W2L2Gl6a7UmkpVXKjGhq2WUarjn0aqA5vvZcY3suNnX9EdrDFLC7lVo0FU8eUoy9pRcvUb/ANjnYNhaGFpUa+Gw9apHW1qkqFNtuUnK15K7SvZX4EgNf7QdDU0XVd8pYmo15KdKPviyG7fsrV9FttxSWIvKKTks6GaUsn5TruEwsKUFTpU4wgtkIRUYrhyiskc+7bvYjitISwbwsIy3JVVLWmoW19y1bX2+AwOMSx6jK6r1b3bco0aOs29V53smrp9FtmZbxGKi6U4qvUu9W0FSpxhJ6qTu9q4b2Wdr8JuEO1hpNJLetB24XUjfytPMt1u1VpOTvveiuaNWKXTtA0mwN97lGkfEpf8AlXUAO/gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEBUQEBAVFRUVFRUVFxUVFRYVFRUVFRYWFxgVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGzAeHx8tLS0tLS0tLS0tLS0tLS8tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAQIHAwQFBgj/xABJEAABAwEDBwYJCQYGAwAAAAABAAIRAwQSIQUGMUFRcZEHE2GBscEiMlJUkqHR4fAUFUJTYpOiwtIWQ2NygqMjJCUzsvFEc+L/xAAbAQACAwEBAQAAAAAAAAAAAAAAAQIEBQMGB//EADQRAAICAQIDBAgFBQEAAAAAAAABAhEDBCESMVEFE0FhFBUjcaGxwdEGUlOR4TIzYoHwcv/aAAwDAQACEQMRAD8A9+hRTXyY3ySJUZTQA5TlRQgRKUKKcpANNRlEooCUoUZRKKAknKhKJSoCcolcXKGXW033GtvxpMwAdmgysLc4j9V+P/5Wlj7H1mSKlGGz80vmzi8+NOmz0EolcIZf/hfi9ymMufw/xe5S9Sa79P4x+4vSMfU7UpyuMMtj6s8fcn89D6s8Qj1Lrv0/ivuHpGPqdiUSuP8APY+rPEI+e2/Vu4hL1Lrf0/ivuPv8fU7CFxvn5v1buIWSz5cY5waWls4SYjrUJ9kayKcnjdL3fcFmxvxOqhJCzjrQ0JShADQkkgBoSQgY0JITAEJIlFACEpQmMxpqKFICSJSlCAHKJSlCBEpRKiiUUBKUSoyiUUBKUpUZSJRQEry5WWMpXf8ADpnwjpPk+9dKV8+5xWmo22WkCo8AWiuAA9wgCq+Na3Ow9Hjz5m578O9dfeVdVlcI7eJaTKSzspKlxbq311T7x/tTGUrR5xW+9f7V7ijM4i7G0lkFJUj862nzmv8AfVP1KQyzavOq/wB9U/UgVl3Ckpc0qio26qWSMpVg660w6o+AY8ITenBRr5StLGkjKTnkRAbVeZ26Tu9aXGifC6v6lvc0ommqY/aK2+dVfTKf7S27zqr6SkQsuQ0lidSVQjOa3edVOIT/AGnt3nVTiPYlsPiL6yRbbwuOPhDQfKHtXSVEZq5fttS3Wam60vIdWpgjDFt4Fw0awCFesrwfbmjx6fUXDlJXXT+DU0uRzhv4EkKMolYtFokklKJRQDQkhADlJCSAGkhJMY0pQhAUY0ISUhDQhCABNRQgByhJEoAcpSlKSdCGSkSlKRTAcqgc8mRlC0j+M8+kb3er7JVEZ+iMpWn+dp402HvXovw6/bTX+P1RR1v9K95wkJIXrzOHKSSJQIaJSQgBoSlEoGOUSoynKQj0XJ6ycqWYfbceFN57lf4Konkvp3sqUT5Larv7T2/mV6Lxn4jd6mK/xXzZq6JezfvJoUZQvPFwkhRlEoAkhJCBgmkkgBpIQgYISQmBBJJCkIcolYbVaqdNt+q9rGyBLiGiToElarstWYfvQdwJ7ApxxzkrSbItpHQlErlnL9m8s+i72JDL9n8s+iVLuMn5X+wuKPU6iFzm5as5/ecQ72Lbo2hjxLHBw6DMb0njlHmqHaZllJJCiA1ElNRJQAnFUdyiCMp2jpNI/wBmmrueVS3KY2MovO1lI/hu/lXoPw/tqJf+X80U9b/QveeXSRKS9gZY0JITAaUoSlADlKUkIAlKJUU5SA9vyRtnKJOyhUP4qY71dIKp3kbpzbKz/JoFvpVGH8iuEFeH7fd6v3JGvo/7ZKU5UUSsQtEpQoymCgZJCSaQwQhIoAEISQAIQkmBBJEpSpCK25Xra9r7PSBhpD34EjwgQ2cNOBI6yvB0Mo1qeIPDDjGnrley5ZP96z/+up/yaq/5wjWvddlwT0cNuvzZkaiXtWe1sVue6yi0FzYvlhBABbpukkGCHXX4wPFIWjaM4Wj98NzRPYvLVHS0naAeBWmVfWlxflRweWXU9DaM5XHxbx/mdHqC9jyT5RfUrVQ86acxqwc39RVaWNgLsYgC8QSBMahOvoXp8kZwMonwKbWEiJDbjiNheyewKvr9MsmCWOC3Z0w5GpqTZeKV4bVVtLL1N4lzyOlxvN9IEgDfCyVspUWeNUHV4XYvMepsl038P5L/AKTEs6UiqitGc9NviMc7fDR3n1LRZn3aWVGlrg1ocJbJdLZxBkxo6F1XYOdrZ/uR9MgXLUKpzlSH+fnbRp/8njuVwVSqi5VB/nWHbQb6qlX2hPsLbU/6Yaz+2eOlCSF7EyhygpJIAkklKEwBCEkANCEkgLJ5GG/4lpdsbRHE1D3K1wVV/I1ThlpftdSb6IefzqzWleE7ad6yf+vkjZ0q9kjJKJXCtmdNmp1jZ716o2JbMYnGATpMagl+0g+qPpe5UVpMzSfDzO3eQ6nelcfO/KjrNY31meMLoHWRPXEqDM46etjhug94XBz/ALX8osgp2cOc7nA5zYg3Q123TiQu2l0ku/gpra9+hHJkXA6Z5ann1Ud41Q7nOc3vhblPOQnEh28OlV5abO9hioxzDsc0tJ3SsTXub4riNxhe09X6d8omT381zLSo5bBMB7wTgB4UzswWtas730iWh9QEGCHOcCCNV0SeowvEZKy5Xp1GvBa4tMi+2YMGDhGI0jpAUatUOe50Yklx2AuMmOKg+zcCe6sktRJnvc3s/LQ61U2VXzTe4MIIA8Y3QW4EzJGvRKtRfPGRRNssw/j0PXVYvoaV5zt3T48M4cCq0+Re0k5STvcEIQsEuGtziRqLS+WdB4+5YjVkzHrWt6vX5vh/IqZ4XlgxfZj9msOBpe1V2CdQVkcqDZZZ3RodUb6QYfyqvG0y6S1pga/cvV9mru9NGPS/mzI1UX3r/wC8DEWkNx2HtJWmug/xeojtWgFowZVkidHWttrgRiOCwURgVKNEJNWxp0bNkqBj21GuPgkOwMOwMrZyrlRrnl1OndDodBMwT4wHRMx0QuYxkPIOkiUVxo3d5QlWwN7Eatdx0nhgsB0LIQsbgpoifRFOtLGu2taeIBVY8qn+/RdtpuHB3vVl5JdNloGNNGkdA1saVXvK03w7OY+jVGiNBp+1ea7O0ndahSvr8jV1O+JngEIQvSGWCEQiEACSlCIRYiKE4SQAIQmgC1eSPCy1Ttrxwps9qsBj14nkpogWAmPGrVDwDW/lXtvBALtgJ4YryOv0MsuonJNbs2sG2NHz9nBbb9stDycHV6pG6+QPUAulkfL1obDb3ON2OMkDodp4yvLueSZOk4necVtZPe4HwSRp0YaI9q9V3MHBRatIx+N8Vo9nXzkIMAAEYEXXOgjSJLm9i1KmcdU6C4brg7Wk+tcKraXOeSZe9xJOsmTpWNlpnVG9cVp8S5RR1c5dTsVMrVKsMe7wXEAlxcWgEwSQ2MBuXnrZSDXFoMgHA7ROlbrKk6FpWzxuod67Qio8lRzk7IWUYrcYxuJvQZOB0adS1rEMVtucNQCk3uJLY6ea7L2ULMP49I+i8O7lfd9UZmNR/wBRs4+24+jTe7uV2dfavNdtaaWfLFxa2X1NTRKoP3me+i+sEjalPSsb1Zk6r4/YuWci90qV7p7FNlEAadOtMWY7VrEjx3KU2bKwgzdqjgWPHsXkchXeYOH0vythe+z6sZNhqfZLD+MA+olVlk+2CmS12v4w48D0LX0i48Dj0ZnZ5cGZS6ojlCm0Elug9utchq7FtcCfBM4Th0rlNar2LaJSy7y2M1MYKIkLJSCzWWg+qSGgQPjFPircjw3sjXpsxnoPYk8YrM+gWOg+4rEfGTTvcHGtmQc1YXhboasNoonFNMTiXzkcOFloCNFClq2U2rwnKu0kWdxGg1hx5s/lViWS3UhSY2T4LGDxTqaAvJ8oFi+VU6YpOALHlxv3gILYwgHoWTgajkTZp5k3jaKmhF1bVqsppuuuIO6Yw3hYARC1k01aMyqIXU7qleHwEucHwECoLqLqYqga0c63agZG6kWqfON2oDggVELqLqyYLaseTK1XClTLtxHeUOSXMai3yLe5MLOPmykTrdWP9147l6TKjA2z1XeTSqHgxx7lx8yqJo2GjSqAtc1pvN1guc5xB4rpZwVR8jtGP7its+rcsebTyN+f1NWCagvcfN4C3LE3Hq7T7lr3Ft2QYncO8962rMijLQtnNud4N682N2mOrFK0ZNeGCsCHNdibuN06wRqKnZ6QvFx6lsivd0cNSENmlZzgVr2sY9S3nxJIETq9i0rV4yQUOwt0r0Dcig0nOPjBpO4gTG5cfI7fCG9eyr2imyyPa7xy0id4xPUJ+Cq2Vyc0kWsEY8DlI0+S6mDb2k/QZUcOsBv51cQcNiqvktof49V+ginG6+8GPwKySXbVm62XtmXNIvZG2SNiQjYVpm9t7U5dt7VUstUS5ls6Spw1TLwoueFFIZo5RszKlNzCfGBHFVPlnNetTLi8XhOFRolsfbjFp6oVxPIWrUaOhWsGV4+Rwy4VPmUYKcNJGgYEzOmY36CsDKeIaASToaAS47gFbmVM2LJWJe+kGnWaZLCd4GBW5kjItms7Zo0Wg+UZLzvccVoLVxrzKfokr8ir7Zm/aKVnFeqwMa54YGEy/EON5wGDR4OjTjqRmuYa8Rj4PqkfG9e8z9IdY3YaHMP4g3vVbWC1Ck+ToPfq3HDrC6433uN2QmliyKjfyrBBEYtxC4hHhLrZRtTHAuDsdEa1y2jwupSxx4VRDNJSlZkYFuWWy33Bu0gcVr02rvZr2V1S002tEw4OPQ1pkk9nWlOVJhBW6LOpWInQVq5SyTUcw3TjC69ttdKhSNSq6GiB0knQ1o1krxdtzzrY83Spgar15xjp8IYrLjCT5GhPJGOzOJlDMi0PODhK0/2DtIEYLcr572+cDTG6mO8lalTPTKB/etG6mzvC0IQzVVopSlhu9yDsxLT0KBzGtPRxQ/O/KJ/8iN1Ol+hQ/azKXnTvQpfoXTgzdUQ48PRkjmLatg4qBzHtfkhSGduUvOnehS/QmM8Mpecn7ul+hPhzdUHFh6MwnMq1+SOKBmfax9AcVttz1yiP3zTvps9iytz7ygNJpHfS9hCXDm8gvD5nNqZo2sxFPEHavRZtZHtFF7JpmBpPasFHlAtn0qdA7mvH5iupYs/qpPhWZn9LyO0FcMyyuNNHXG8Kdpnu7OIGhYMtPBs1ZsaaNQaBrYVHIOXKVq8D/bfpDSZvDXdOEnoW3lSzf4bxOlrhxBVFJply01sUK+xwSsFDS7f3Bd230xJhcFpxf/N7FsY3Zl5I0bFOm52DVkqZLqgFzSTAkiNW6MV3ch2UGGjSunbqLqbgC3VJK4yzy4qRajpY8NvmeFpvnTpGnr1hYaoxUpF8kaIPC8SPUrCtfJ419Gm+jULKhpsLmulzHOui8drZM6F2yTUGr8SrDG5p14HgbHIBIMGRCz1KtWoZeZjZiMNuGAnuXobFmTbbxY6mxoOF8ukDEGWgYzhG4leuyZmdSpgX3c4R5Qhk9DNfXK4z1EYu1udoaeUlT2NXk6sBbRfVxHOlukamTo6JcV7VjQsNGykDAwOC2WUun1rIytzm5dTShFRikRLRqPr9yOb3LLzSfM/Ernwk7MfNN2FHMt6UQE4QosLQuYbtKgbMzpWWEippMjZiNlZ0puoN6VMqDurgpqwOblawU6lNzJIJEA7DqPFVXlfNmvSLjWEtxIqtBc0n7cYt4Qrhc3pWJ9IKxiyyhyOOTFGfMob5NdIHjExEG8DOiI0qTBiervVrZWzPstYl4Bpv036eGO0t0HtXLsPJ7TD71as6o3yQ26D/ADGVdWpi1bKb0sk9jyGRslVrS67RbgNLz4jevWegK0s3skMsrLrAC44uefGcR2DoXQslip02hjGhoGgAAALaYwKrkyufki3iwxh5srLPvK9WtbuZDXFtnYTdaRJcWBz6mOGDS0DCdO1eYOVwfoPP9YHYxbufrf8AU7QBtp8DRprjWSzmoYHijT0rQxxioK14GbkuWRpdTYdlJmujxrO7gl85M83af66h/MupRyMLswB1SVoW/Jt33JrNFuiUtPNKzH86t82p8an6k/nYebUv7n6lzoWy8gNBwXayubHzs3zalxqfqT+dmea0uNT9S1bOHvEtY2NpwCxMtGMOaB1YpWFHQ+dKeuys6qlUd6BlGj5rwrP7wVoOxKzWSyl+jR6yhypWySi26Rti20PqXjdUb3tWSnlCiNAqj7t3sWduQ8NA9a5trsZZOqNPt6QuSyQlsdZYZxVnVblgxepPeHMhwdzfikEQ4uDjAmNIhW1k63i12NlcCDUYQ4ag9pLXgdAcDCoijWcA4NcReF1wB0jTB2hXXyc0f9KoTrNY6/r6nSuGpxxUU0vE66ab4miuLe0glpGIJB3gwV5x4xf/ADEqy8/shlpNqpNJGHOtGJgaKg6RoPRGxV42iXOfdIgXnySBIGJidJ6F0xStWQyxd0d7N7K1Frmue66RpwJB4Lp515y0qlM0qMuLsJiHEbGjUNpK8dZLFzjoAGiTLrgiQMTPSFuvsrgLtIMJmC2lNR+vFxaDs260+HGpW+ZLvcrhXh1NKy2S9UbTnwqj2tMai4hoA3Sr+uwJwjoCrLMzNuqazH17O5jab+cDnS1znCLoIP0QRe0TJVptGG3gqmqmpSroWNLDhV9TAS34lK8Br9azNpn/ALCk5jhsKpMtkGvnQJ3EJgnyTxCbaQOlg3ypGyD4cVChkQ8zEHfgnKPk32jx9yibH9o8UqDYiFLBYROxOShAZo6UFsKNFpOpTI3DpKkhES3clUpE7I4LMegY8Asc6AMTrI1cFIRhNnOvAdSiKE6/jgtutgBr3nHqCi7ASOHsUhGqbNt7lIWc/HvWZrXQS4XRrnT1wsjaQ2TvwHqUgs1vk/X1+5Pmjs4ELMHgnDwj0YAdaw1WuALnHDUB7QJTFZTef9KMpVjtFMj7lg7lgzRotqBzNcNI3Yg8D2rd5QSPlxOiabDpnaMeC4dhq1KLxWpTAM4CSw6wW62lakY8eJLyMxy4Mrfmz2lvyZUuggHpjUBrXnreXRdO3XqXrsi59We441Ww4tu+A5scHEEeteLzgy415IpCJ1yC7qA0LlHFK90WZ5sdWmcSpHOGNHhd3fKlaRLQFjoM1n4C3rOG3gXHAK15Gfz3NejQrtb4LcCdk47RsK0gxweb2mcZ2qwbNnTTpsDG0mQ0QJEnrO1cDOKtSrv55jQ158YDAO6d66OKrYRx3DwXHo7V6TN+kIYdOLh1yR7F55uiDoOBXUzdyt8nqC+LwOomJ1Xmnb0Lhki5RpHbDNRnbPUZXslRjQ4aDsXn7U4Ekv1A48dKsGyZyWJ1GpeLheAgGmScOkYetVpl7KDajrlNuGwYudvjABcceKXiqLeXLBK07OPR0x9kccfcr8zFc1mTbM2R4hPpPc7vVEUKRBJOkq/s02NFhs7TE8xSneWAntRqnSRx0qts6NYMcCCRivKVcwcnueX3SJMw17g3hPYvX3RogcQoOY3YOIVNTa5FxwT5nCsmatgpxds1ORrcL54uldenRY3Boa0bGiOwJ3Rs9fuQGDYoObfMkoJciUN2jis1MtjSOK1S0bPWo82Z0x0betQ4idHRaW9CTrm0cVz3TMBs9Ozim1uOJ6vck5Aom7cbtHFSJG0cVqxt7CoHd61CyVG0bu0cQoT0jisF1IfGBUbHRpwdcoxQhRRIMfiUY7Tx96EJgKXDQT61CDtPEhCFIRmslIl14k4dOtb3WhCmiDGCTheUhOjBCFNEWAZGgAbliqNdr4YoQpIiyus/skvFSnaKVGXjA+DeaRqDmx0nH3R4NtnrsMinUB6GkepCFaw5GlRWy403ZCsxxMvpY7SwysHMx9Aj+khCFZWVsrPEhx8QldCEKXEQ4TfbYqBaCLW0HCQadQRInSAZxkf9rWtVGm1wDKoqCJkBzYOyHIQkr6km0+Sr9/uYgFIHURI2ESEIT4iNAGM8g+k6FlbWIF1jQ0HTAxO8oQjvGNQRv5IsJrObRLIvVATUxLw2CC0DQrzsFO6xrQIDWgDbAEBCFRyzcpUy7hikjax2dqi44+LPFCFzo7WQcNre1TDBsQhRY0O63Z8cVIMGxCFEkRAGxZObbs9ZQhIRBwHk9vci6PJ7UIS4UOxQNnqKibuwfiQhQexJbn//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhIQEA8TEg8WEBEPFRIQEBIRERAPFhUWFhYRFRUYHSggGBolGxgVITEhJiorLi8uFx8zODMtNyotLisBCgoKDg0NDg0NDysZFRkrKysrKy0rKysrLSsrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrLSsrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAABAUCAwYHAf/EAEMQAAICAQMBBAUHCAoCAwAAAAABAhEDBBIhMSIyQVEFE0JhcQYjM1KBkaEURGJjcqKxwSRDU1RzkrLR4fCCwhU0k//EABUBAQEAAAAAAAAAAAAAAAAAAAAB/8QAFhEBAQEAAAAAAAAAAAAAAAAAABEB/9oADAMBAAIRAxEAPwD3EAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACJ6Q1yxJcXJ9F/NgSz43XU5vN6QzT9ql5R7P49fxIkot97l/Fv8AiywdVLV411yQX/kjD/5DD/ax+85dw9xjtl9Vf5v+BB1S9IYf7WP3ozjq8b6ZIP8A8kcnsf1V/m/4M1j9wg65O+h9OShFru8P4tfwZLw6/NH2rXlLtfj1/EQdECLodYsi6VJdV/NEogAAAAAAAAAAAAAAAAAAAAAAAAHPenZ/PL/Dj/GR0JzPpx/PP9mKLg0pJ+P40ZrF7iOhufmVEjY/INfo38XRHWWX1n95nHNL6zA2pP6tGSxvyPkMsvM3wm/Mg1rTt+BsjpPN1+JuizMlVs9GRSnS+q/4otCr0H0n2MtAAAAAAAAAAAAAAAAAAAAAAAAABxvprXRWqyY5cNLHT8HcE6fl1OyPNflK71uf44192OAFwmGQPR5YuC8y1GsyiaskqMI6j9H8f+BRPgScZCwZL8PxLTTaa/H8BQiZE3Ho4+9/b/sa9VjSXCIqBpNYvX48a5b32/BVFui/OQ0PGrxfGa/ckdeAAAAAAAAAAAAAAAAAAAAAAAAAPMvTzvWZ3+sS+6KR6aeW+lXeqzv9dNfc6AsNAWd8FZoSxvgCNnZoRtzM0oCw0jL3RsoNIy+0YFlEjazoSIEfV9AOcwutVh/br74tHYHGvjUYX+tgvvdHZAAAAAAAAAAAAAAAAAAAAAAAAADyrWu9Rnf6/L/rkeqnk+V3lyPzy5H98mBa6IsG+Cv0RObAj5jTE2ZTVECfpGXujKHSl7owLOBp1XQ2wNWp6AcxqOM+F/rsX+tHZnFa/jJB+WSD/eR2oAAAAAAAAAAAAAAAAAAAAAAAAA8jwyuTfnJv72etydJv3WeRaTyAu9GTGyFpCY2BGymuJnlZriBP0peaMotKXejYFtjNWp6GeNmGo6Acr6XdNPyaf4nbHE+mauv+0drFgfQAAAAAAAAAAAAAAAAAAAAAAAatXKoTflCT/Bnj66/Y/Py62uV4cq/eujPW/Skqw5n5Ysj/AHWeSxXMf2q/D/vSn8VwBYaPWyW29ri9tSb22n6pKpq4S78n7N8JLxJ0PSMXFSlCcVtUu5vilshJ9rHui+/XXlxlVpWVWkfSS69i2nK72473Tgr8Pbj/ALHyELUnGN9mVyhGE5SfqtKr34JRn08432V3YqKkFlPW4rr1sLuSrek7jP1b/fqPxdH2GWP1l/mXnt/jx8SszZWruTS9ZLvZckeurSS+dxv4KuOUo8OMlp3wa78X217ekfP5ZVcxXtcedqvpOQOm0+aK6yj9sl57f48fEs9N6SwKk82O7jGvWRbuWT1UVV+OTs/FUcfgyQS+kgu2+d+iXP5alXEH7XHnbr6TkttDnbqpuS9bDuZsj6a5xarDiXwduuHGXClNh08vTMFBzhDLkSg52oeri16vJNdvLtivo2uXw5Ruk7I2s9KTe7btjCLmnKL30orOneSVY4c44PrKuU1ypFTLHSi5xrsQSlkhCEov1GuV79VOc7p+EHJbn3ouajJ1jfM3d/OOMpOd3szVtnkW72v6qF+VrgCDqbt312x5dtvjq2+X48tLxpdWd5gdxi/0V/A4TVLtT/bry5pdeXzVdW38FSO40DvFjf6uD/dQG8AAAAAAAAAAAAAAAAAAAAAAAEH05KtPn/wcn+lnlMOqv68PLxfTnj7H9js9S+UjrS5/8Nr7+Dy1Or91O+lLcr58vvXnXVhIweC6yUVxTc0ts+itZI93wcvd4sZqcqlUpbZpRk8WSVXpU+Mqhk614+Ktt7EsJNJbXVVLbFqNSezUuoxm9rdRvsTTpc7Y9d+ok1xKW2NtduUoK/W4Iqo5YyjXhw/HhW7iGE1JeE1857K1UFzqv0ZSXR/anztg2lissvGVdpdc2Tp+VbfaxeXH7vSpnyGO+7BLtp9nHjf53Jt3iyL3vp427e6JlGLS6ZOsekdYvzm/CT8Pw69jgCRizS8Je1Lpmy/3tL2cXlx+70uZZaZSdcZH84uq1uRdnXJ+1KC6fclxuxpJ1uKMn4ZOsvZ1r/Ok/rLw/Dp83wTY40uZQT7bdyxY1+fQknefK/c1x4Jxp7YATNJtjJKLjCW3GnGLwYpVeuS7OFZMvW2u0ujppqae/L7S6TlCXFSjOScYdVbzS5n4uC864ZhoZ7mlGW6NxXzc5Tiqz6qMk46eEYJKqdyripK47pY4mnHaqaqG6CUKi/V6PicMb2J1K/nJyaT43x6Bp1XjX9pk6VXEuUq46+Cvnq74O19Fv5nF/hQ/0o4nO7p9b3O7u05OueLXwSj5X1XZ+hneDF+wl93AE0AAAAAAAAAAAAAAAAAAAAAAAFR8rJVpM3wivvnFHmPn+zfF3ap8beb+HPuao9K+WT/omX3vGv34nmrXD/ZmvBp9m0qbSfwbXua6AbcrqOR7lGNZrlcYxVLVN7pVLG6dd+KrrJyfBImmm3FSS9ZJdlZYrnUY07eFyjfD6pOrvat5qyX22r3KOTlb964zUt0F62Pe47Mq9nzM2lKTaqT9Y1aWObSWrVq8bhJVtfVNKuXKmpEaHOLfMoze7C6ctNNr+lyp9qMZdVx749m5q3lDFxxBex0xYn+dN+zl+38eXcDJzlwnKSV4O9PNF29TLisuN+CS62+F2Vtkat2NpXOD+hfMtJL8746wXtcL3rjt8hUqOLh3jT+k64cX97jJd7NXv+y+HUCZinBN1KEHuzOlLSQbrXY9z7MZy6un75dqptONfjnjSdTgvpn3tHH87VviD9p0/e+e3yWeHLLtJSk+dT3MmeTtaqCqsOKPRWqu1ynuW6QRY6dNyUpKUl62Ee2s042tXmSaeeUIJ010i3VVvjsNemluhie5Sx7dOoy3RlB2tA4uMnGOFW7pY4St8wcZXERqM05bYS9dFKUlixyaevdRvLLJN3uSVJJ7uy4NpRy0zfzUne9xxU5es9Y1t025bsieaXd5qME/aV8hUebur+om73Xcm3zu7V/tcvyirvsvQD/o+P4NfdJnFtcJeUMcaXFPam0km0vgnLwuT4R2Pybf9Hh8Z/6mBZgAAAAAAAAAAAAAAAAAAAAAAAoPlu/6LL3zgvxv+R51Ff8Av9zi+t3SvzTXmr5PTPlbpXk000usXGa+x8/hZ5rjjzXjvXnae1p1XN15cpeaA2yVqvGp7U0n1j1jGTV97+rn4mWWStKXPz0KWSSbv8sdNR1EU/BVtl4LYuIN4QfZ57rirfZ2SuOHq6eOXe9qMX5Lqzbj3Jrqk8kOnrIQp6nI/Bzg3XWqbtW42lENeLG1tdSSrTLsRzxX082/o5yjXKvwrvNxaUco5JUuX0w9cmdPnUNe1ib6ce/pwqkatMovY4qMnt0j3KOnna9bkd3CUX5u6pW2lJ7kbI45UuJdMHdx6lfnDb7uR+HXyXMrj2UG+OadPmXTN0y6hvjUJLu4r6faunKuRKnjb3OptVqlU4aia/8AsY2vpckIVSdeFdxqKalEWKVPifdz97Hqnz+UJrvZV4dPdzFqPZe3Oox3uahF7da98o6WFR9did3klN10be2nSbUXtQRZaaa3VDj5+dxxSina18dzcdNFuuXe6Xi/WLmbWeDiKj4qOPckkukFzKEZNru/1uTw8TCTk5O7aWXJ/a5IUtZiau/V41Kul21TpzSkpYua2KmnBRdPsuEahn6PasUe77EZteK6MKwydP8A80velBJVSSavySjfRXydd8mH8wvdKS/E5LMu1XN73fW29sUrvluvrcteUTsvQGDZhin1bcn8X/1AWIAAAAAAAAAAAAAAAAAAAAAAAMM0N0WvNNHnfpL0elkcXxJSi06tSjF2k0+vx6o9HKX096JWVbo8SXiuoHn/AKicGrT9lbo75f3ePfj26bjLvKd025JKj5p4pyTik+cLcoKLbXrszpyxSi6TvvR28u91yqfqJTxPbkTS+tXD/wBjBzxzqTUZNOMk2lKnG9rT91v72EQMOS/V7peGj4nPtbnOb5WbEp2+Or3ccKLVywwwxtRqEH2NM7UdG01+UyarbNdHb44vmNyuJYY8UY1tckksaSWXJtqF0qba8efPi+iPiwfrJ9Ma5eN9ye++YPl9H7ulPkKiOOOpXDGuxquXHRJJflMW+9Nqm6bvi1cqlSJs8tes2T8NdxjnUtynjb40+Jztc9HuV8qTdxzhh/WT6ZFw8a781O+MfVVS9z5t8kmWOEr3OTTWRNPLk27clWqUkvBV5W6q2EfNRFKblJJO87UpqCaX5Tp5UpZpSlTdd2G3hVtahe14ck263LiS3y3xd/0uHfk/WOnKHdWOlJOMnF0bI5scLklGLblJtKMW3KnJtrzpX8Ea1r5ZHtwx3P63sr/colRxJS2x5yScq4S2KTt0lwvD4+J1+jx7YJe4qfQfonZ258zfVsvSKAAAAAAAAAAAAAAAAAAAAAAAAAACDrfRmPIuUjmdb8jVbeNuL/RdHaADzfL8mdVHuzv9qKf8CPL0NrV7MH9kl/M9PobV5AeXr0TrvCMPuk/5knD8ntbLvZFH9mK/nZ6NsXkfaA43Q/I9Wnlk5P8ASbZ02i9GY8a7MUTQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBAREA8TFRAQEA8REA8VDxAQEA8QFRUWFhYWExUYICogGBslGxcVIjEhJSkrLjAuFx8zODMsNyouLywBCgoKDQ0NDg0NDisZFRktKy0rKysrKy0rLSsrKysrKysyLSsrLTcrKystKy0rKystNy0tLS0rKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwECBAUGAwj/xAA/EAACAgEBBAcEBwYFBQAAAAAAAQIDBBEFBhIhBxMxQVFhcRQiMoEjQkNicoKRUlOhorHRM2Nzg5IkNESy8P/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABYRAQEBAAAAAAAAAAAAAAAAAAARAf/aAAwDAQACEQMRAD8AnEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAALbbIxTlKSjFLVybSSXi2+wC4HH7U6S9l0NxV7tku6mDsj8p8oP8AU1tXS/s5vR1ZUV+06qmv5Zt/wAkIHPbH322dltRpy4ccuSrnrTY34RjNLifpqdCAAAAAAAAAAAAAAAAAAAAAAAAAAAAHjlZVdUHO2yMIR5ynOUYRivNvkjhNvdLODRrHGjLJsXfH6OnXznJav8sWgJBNLt3erBwV/wBRkQjLuqWs7X6Vx1fz7CEtvdIu0svVdd1Nb5dXRrXqvOz438ml5HJeL7222+9t97LBKu3umKb1jg4yiv313vS+VcXovVyfoR5tnb2XmS1ycidnPVQb0rj+GtaRXroa4qkBQroVSL0ijzcCQujjfu/HuqxcicrMa2ca4uTcp0Sk9ItSfNw1aTT7FzWmmj4PQ6Do5wIZe08ev4o1t5FmnYo1aNavwc3BfMg+jAAQAAAAAAAAAAAAAAAAADG2htCnHg7L7oVwX15zjBei17X5AZII2290vYtWscSqV8/3ktaaV+q4pfovUjnbu/W0s3VWZDhU+2qlOqvTwk0+KS8pNosE3bf312fhaq7Ii7F9jX9Lbr4OMfh/NoRxt7pgyLNY4VEaY/vbNLbfVRXuxfrxEZJeALEZm1NqZGVPjyb7LZdznJyUfwx7I+iSMQFQKFdCqRUCmhckWWWxj2v+5iW57+qvmwM9yS5t6GLbnpfCtfPsRr5zcubepQD1svlPtfLw7v0Jq6ANj8NOVmSXO2caKn9yv3pteTlJL/bIy3T3LztpSXs9LVLfvZU040RXfo/rvyjr56dp9K7t7FrwcSnFqesaYacTSTnNtynNpd7k2/mTVbMAEAAAAAAAAAAAAa/a+28XEjx5N9dS7uKSUpfhj2yfkkyPNvdMVUdY4WPKx91tutdfqoL3pej4QJTOW2/0gbOw9VK9WWrX6GnS2eq7m0+GL/E0Qft3fHPzdVfky6t/Yw+ip08HGPxL8WpokWCRtv8AS5mW6xxK4Y8Oa43pde/PV+7H00fqcFnZtt8+svtnZY/rznKcvRN9i8kY4KgVAANdnP5c+QQEpJc29AKlTDtzkvhWvn3GFbkSl2v5dwGysy4R79X5GJbnSfZyX8TD1K6gXt69obO13W6MNpZ3DOVfs1D+1vi1OS+5T8T+fCvBsmLdTox2dgcM3X1+QufX3JS4X411/DD1018xRCW6/R/tHaHDKqh10P8A8m7WutrxgtOKfyWnmiYd1uiTZ+JwzyF7VctHxWxSpi/u09n/AC4iQQSqpGKSSSSSWiSWiS8EVAIAAAAAAAafbu8+FgrXJyYQemqr1c7ZelcdZP10A3BbZNRTlJpRS1bbSSXmyItv9MrescHG08Lr+b+VUX/Fy+RHO2t4szNeuVk2WLXVQb4al6Vx0ivXTUsE37e6T9m42sa7HkWL6tOkoJ+dj93T0bfkRxt7pU2hkaxpccat91fv26edkv6xUWcIVLB6X3Tsk52TlOcvinKTnOXrJ82WFCoQARUAioR523xj2vn4LmwPQtnYo9rMG3Nb+Hkv1ZiylrzZRnW537K+bMOc3J83qWJnvh41t841UVznZL4a64SnOXyXP5geEkK65Skoxi5Sk9IxinKUn4RS5tkp7rdCuVdwzz7Vj1vn1MOGzIa85c4Q/m9ES5u9ups/ZcG8eiFekW7Mib4rXFLVudsuaXfpyRKRCe63RBtDK0nk6YlL0fvriyJLyqT938zTXgyUtnbs7E2DX19jrjOK/wC6yJxnc3/lruflBI4ff7pftslPH2W+CpPhlm6azsff1KfKMfvPm+7TtfD7O25Xj63KDyNoTi+LLy9LoUf6FUtXOa/eTfpHmRUt4vTLjXZlFFWLZ1F1sKnlTnCvRzkoxlGvnrHVrtcWl3a8iTz5U2A55O0KJ2ThOXXwvyLb7FXV1UJKc3bJ9i0WmnmkTz0fby25s8utqmdOPYupy6Ou6m5TlNuH0iXvR0Wri9Pe5aLQg7IAAAAAAAA0u9O9GLs6rrMifOWvV0x0dtrXdCP6at6JarmZO8W2K8HFuybfhqjrwp6Ocm9IwXm5NL5nzLt7bN2bfPIyJcVk3yX1a4fVhBd0V/dvm2y4On3m6Ts/Lco1T9mpeqUKn9K19+3t1/Dw/M4mUm2223KTblJvVyb7W33stZQov1BYVQReipaVQFxUoeNmVFdnN/w/UDIR5WZEY9+r8EYVl8pd/LwR5MD2uypS7OS8v7mOwZ+xdiZWbZ1eJj2XTWnFwr3Ya9nHN6Rh+Zoo1zZlbL2ZkZViqxqLLbP2IRctF4yfZFeb0RKGF0WYuBT7VtzLSgmtMWly0nLm1DjS45tpdkEtNHzaL8npSrxqXRsjZ9ePXF/4k1H5twi9OLzc35kov3V6EbJcNm0r+Bcn7NS1KfpO18l5qKflIlvYewMPAr4MWiuqPLiaXvz075zfvSfm2yCsbeHbGel1dGVlNtvrOPMrxn5KOPKqvT8TZpt7sTPqUK87EoplcpThHgxp38Ka1k58U7IrXlzktdJeDIr6B3i322fgQcrsiLno3GiuUbLrH4Rgny5970XmQXvzv9lbTbhN9Vh8Xu40ZPSznyd0vtH5corlybWpkdH/AEZ3bRj105OjF7I28Cc7n39XF8tPvPl3aPnpN27+5ez8HR0Y0OsX2811t3n78ucfRaLyA+ddj4U1rKWzMjJTi1CuMMmNS1+tN1R4prwUZRXqbOvNojB0Z7vxKeNP2PF2ZTS5SSWk53ZEutlLnp7yZ9LlltUZrSUVJPuaTX6MUQdsjau61Uk5YWTZJfXyIK+La7+r43H+UkzdbfbZ2dZ7PiSlxwqlYq3TKuMa4uMXpy07Zx5eZmZG52zLG3LZ+Nq+1qiuDb9YpM9Nibr4OFOU8XGhXOceGUk5NuOuunNvRakG4AAAAAAABGnTvbJYOPFP3Z5a4vPSuxpP+vyIOZ9Pb8bAW0MG6j7TTrKZfs3Q5x+T5xflJnzHbW4tqS0abXzXaXBYAUKKgo5Jdr0/+8DxnkeC+b/sEZLkl2njPKS7Ofn3GNKTfaygF07G+1/LuLAbvdrdPO2jLTFx3KGukr5e5RDx1sfb6R1fkBpDa7v7s5u0J8OJjzs0ekrNOGmvx47H7qfl2+CZM+6vQziUcNmdP2mxc+qWsMaL818VnzaT/ZJLxseFUI11wjCuC0jCEVCEV4RiuSRKqKt1ehWivhs2jb10+T9nrcq6E/CUuU5/yryJSwMGqiuNVFUK64/DXCEYQXokZAIIG6Y8jIv2rDEiubjjU40W9It3SXNPu1m0m/8ALj4EhbodGeDgxhK2uORlJJyusipQjL/KrfKCXc+3zKdJ2472nXXbjyjDMx3rVNtxVkU9eBzjzi0+cZdz18dVxXsO980qHZfGGnC7eu2fHl4u2Hv/ADXMokDfvfrG2VU02p5Uo/RYyej/ABWP6kF49/dqcXul0e5G0LntHbLk3c1YsZ6xlNfVVi+zrS00rXPx05p7rcjourxZrJzprIyuJTSblOquxc+JufO2afNSlpp3LXmSOBbXWopRikoxSUYpJKKXJJJdiLgCAAAAAAAAAAAAAAHz70x7vPDznfWtKc3is5L3Vev8VNdnPVS/NLwPoI57fvdqO0sKyjVK1NWUTfZC6Oumvgmm4vykwPl13vy/RL+h5yul4/pojK2ps+7GtnTkVyrth8Vclo/Jruafc1yZhM0KFBJpdr0Ot3Z6OdpZ+koUdVS9Pp7+KuOnjCGnFP5LTzQRyR0O7O5e0NotPGx31T7cmzWvHXpNrWX5VImrdbol2ficM717VetHxWxXUxf3Kez/AJcTJAjFJJJaJcklySRKqNd1eh3CxuGeZL2q1c+Bx4MaL/0+2f5m15IkiqqMIqMIqMYpKMUlGMUu5JdheCAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1+2NiYuZFQyseq2K+HjhGTi/GL7YvzRy8+iXYrevss15LLytP/c7gAaHY+5ezcNqWPg0xnHsscOstX+5PWX8TfAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSEBIVFRUVFRUVFRUVFRUVFRUVFRUXFhUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFxAQFS0dHR0tLS0tLS0tLS0tLS0tLSsrLS0tKy0tLS0tLS0tLS0rLS0tLS0rLS0tLS0tLS0tLS0tK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAABAAIDBQYHBAj/xABIEAABAwEEBwMHCQcDAwUAAAABAAIDEQQSITEFBkFRcYGRE2GhByIyUrHB0SNCYnKCkrLh8BQkM1NjosIVQ3M0s/GTo8PT4v/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACERAQEAAgICAwEBAQAAAAAAAAABAhEhMQNBEjJREyIE/9oADAMBAAIRAxEAPwDuNFhvLRYu10VN/TdHJ91wr4Ercqo1vsXbWG0xevDIOd0kJwr05BoGS/BG7exvsXvIVJqNLesrO4ub0OCh1gtZMwiFKAAmoJpXcBtOXLvW2+HP8d3S8/bgDdvAkbDmpRaBtwWYI7YXK/KN/huJxNMTGTt3jOmO5erRFuLgWvwc00IRKLhpoHecKZjcaOaeLTUFeBmjWsN6Evgdvge6PqzFh6BSN7k8THbj4Jp091m1itsIq+SKdoxPagwvAH9RtWHiQFjPKJrGy2ugMbCDG2QPBdG4VcW0o5riD6JWhtrg6KQDax/4SuYBRneNNfHjzsvO9Xxb8UbzvVPVvxSTgsW716PtZbUOBpsxHPbwWm0VpdjRg5gNfnuDWjkKk8MOKyCKqZWFcZXVbNpazOaBabayQfy74ZD/AOkD5/2y5VuuGk7LNGGsljN30Q0jDhTJc9qin8y/nDnRiuY6qSGNvziOqhQU7VprdWLTZYZA98jQRl6Rp0C10mt9i/njk2T3NXJUk5lpNwldCt2mtGyen2buMDyepYvPFrFYowGxuAa2t0dk+gvZ0BbgsKgUrltWOOuq0lrtljc68JHA9zHUONa4tzXmtVtgdIJBKQBQXbjshQZ8lQlCimw3v03O2V96J9GnMEPqScziKeK6t5N7F2dkvU/iPccqYN80eIK5Poaz35WimVScK5DceIXZNH6dssEMbLzvMYAaRuGNPOOQGdUrjfR42b5XxGHFeaVtTXdgP1yVXY9cLJLII2vIccG3hQE7qqzZI12TgeBBWdawLiKekpNtE2RlQQdoI6pyS6XM+e9T2dm+1QH/AGrQ8U7rxH+Kk0VCH2+ZzxURkkA7w1oHiT0XrtkPY6at0eQkLZW94LWk+LndFFobCe17+0HjU+5aZXhljP8AT26x2FrwLQxoEkZvOoAKilL2G0AnHcT3KgtgDZGztyfQPHsr+tq1sUu/I4Ed20LKW+z3TJCcvm8Di08fipxyaXH0uYXVCeQqvQdovRiuYwPEYFWq0c9ht3B3e0jwXLmZLqsYxXKwFGbXxexTgmhOCzaiEapqSDOTgmtTkAUEkUgSSSKDAoUTw1CiAjISCeQkGoC+1SspcZHBxbQBuAqSMzmQNg2r16Rmic4RtLpLxoS6UtYDUjEsApkdvVW+qerEUtmY+a+Q8ud2YddYQHFovXaEghoNK0xyWsg0dEwARxsaAKC60CgGwUSvlsmoP5S3dc4l0bNG5ossTHEj0omSuFa5GSUAD2LdanaNkjq60GJt4C9573zEjKpFGNGJwAKszEh2SxyyyrbGSLns4fX/ALikqXskVPJ6jode5Oqm0O9Kq7HFK455R4ey03BIP9+z3ebC78ugVTYsLTahvMbv7B8VpvLbFdfYLSB6MxjJ3B9D080rME0tkg9eBruYcB7AVV+on2WPaKo1jGDXjZgeGY9/Re4uXj0h50bm8acsVnO216eDREl2VzdjqPHPPxr1WiBWN0faBfZjkS34exa1jsFtHNnOU8eYXL7QKPeNznDoSumwnFc20gPlpf8Akk/GVGavGhCcE0JyhsKQCQTkAgigE4JGSIQRQCRSRQCCVEQEQEgbREtTqL26HjDp4g7K+0nvDTUjwQGtl1sZZrOyNgbGWMY1va+c51AAT2cZqN+POik1c1uEp+XtUYJyYIXxnm95pXuFeKfpC1xPr8hG8moxjaOZcRlwqVST6Ig+c0NJ2scaDfQEmmOxVlhNJxyy26KLWzenC0s3rn+gdKdlN+zudeaSA0nNrjSg8acea1z43eqehXJlbjXVJKsu3bvCSrLpSU/0p/B1G73lENTKnhxSB3mq9B5ksYby2WYv0Y5wpWKSN/Dzrp/EsCX1ms0gykje0821b4uXUdfbRFLYrTZmuvSOhfRrAXEEC8C6nojDMrkejJr1ls0n8t7D0N2nWifpcu6s7Q2hXjkOQ415hX1vslcuSpJI/wA+Sz02Y4EsmIIxvVpuFcPAeK3NmdVvJYnT7Ls/H/L8ithoyS9G09y0jLKPbEcQue6XbSeb/lkPV5PvXQGZ9Fg9PClpl+vXqAUshh28IRCARChqcEQgiEAV7INGTv8A4cEr65XYnur0CnsFpkis8j4nuY4zQNvMJa66I7QXC8MRjcPILyWi1ySfxJHv+u9z/wARSU9btCWhoq9jWD+rLDF/3HhI6LAxdabO3g90h/8AaY5VzW7k5ILH9kswztLnf8cDj4vcxImyDIWh/ExRjoA/2qvC9WjIr80bTk6RgPAuFfBAHScLWSyMZW61xaKmpwwNTQVxrsXnT5pS9znnNzi48XGp9qbRAIBeiy1F5wJFBg7IAnEAnZUBwG9QtC1miNDmXRtoIHnOeHN3kQitP7pAgMmdIyY9o94NPNo6pJ2VrkM0nyvawPdW6TdJq1zr2dKA1aLtM6HPYvboKON9I5KD5QGQEtHaxgk0a5w81wJyBFRwwstKxtgb2tmZGW/tLnOJka6l0G5Vta1un5uW9FpY2zpnLRbHF7T6IaAGgfNAy6V8F3LRkxkhjkr6bGO+80FcHkaS5oGJNBTvJyXddFN7OGOMj0GMb91oCz8vpfje66UE3tUVi02s/wDVDL/00Tpf6hrHEPtnF32QUJ7LQVttooP5UZLGnur6b/BV9t1ke7CIXBvwLvgP1iqKeUuJLiSTmSSSeJK6svPPTlx/5/1eWvTsTWGGzxNaxwLTUUqCKHzRxzJ5LkurUfyE0GZjkkYK72nDxC2j3LDzyOhmt7W1aadq3i9l4kcyl4vJcrdr8njmMmm+sIEsLHb2jqBRV9vsPzgMNvcd6k1Ftgls7e4A8K5jqCtFJZxnTA5rbSXGtdorr2nu/L3K71fkrE3p0TfKjYwwsIyIFO6jjh4rz6qurCO4/mhN6aFqwusg/epeLfFjStw0rF60t/eX94Yf7Gj3JUYzlVBEIBOClYohBEJGsSaWUD1rQ4/ciZ/9idoDRZtU7YA9rC4GhcCfRBcQANtAeiilH7vF3y2gjgWWZvtYV7NVHMFqidLMIWsdfvmmbRUNxwxy5pGtDqowMtTu3LjZ3siF1gaHSOugjEnJzg3jVWdv1ZsUbbXG3ti+zQiUyOe2lXMc9oDWgD5u0bVLq9CDY6BxcJtIxUc70nhksTrzu8iOp5qztzmTNtoay442mzwPeHEmWj42AOBHmtF8ig3nep2emP12sMcEsUUTA27Awvpm55LgSTtPmjqqrRVQ9zh8yOV1dx7NzWH77mLTa4WAzTWy0Xw1lnMMYFKlxcxlWg1woXE81mrIKRTO3iOP70gk9kJTgeQJwQRCYOCtNHa5WiztEUbIixlcw68aklxJvUzrsVXWmJVa6NvZkhxMla1wDaVxrXKnRE5TlVpbrYyV5e2O5exczMA7S07q7FBDE57qRxOc7K61hJr30GHNeCzzk55roeoVrZNWJ4HaNFWu2uZlSuZI96MrZCxxlo6oaoPY8Wi1NoW4sjwJvbHPphhsC3YKcyIjb1TXNoVz27bTg+iSaikasKkgsT5PRFBvOXLerux6Ia3F/nHw6K0jg5ImOzuWlPZdEMbicTvPuGxc415sNzSbmnK0WUc82H2LtEUG7qc+S5r5YLJctNhmG3tIie80I9pXRhh8eWGee+GW8mVvMcjoH4EOpQ/S/wD1X766q1cs/wBLuztnZUXg4O78K9agLomhbeJYwT6TcHjv38DmtksR5XWC7HTd/l/5VFqp/CPEfhCtvKraL0lwH0GsBG4kudjyc3qq/VmKkfP2YKaWl21ZDW0fvB72M9hHuWwaFktcR+8Dvjb+Jw9yWzkUYTgmhOCDOSCSISN77YfkbOPoyO6zPb/8asNTNJQ2e1NktAqy64ejeuk0o6nKmG9V1uFGQD+ifG0Tu968iRtdFrHDZ2WaGC/MyCR0z3uHZdo9zXhoa3EtA7TM7lBbNbnnCCFkQM37Q8VdIZJaggvJphUDAbgqKyWGWTGON7x6zWktHF2QU/8AphH8SWGPuMgkd92K8eqWob0aS1itNoaWSyVa4gljWta0kUoTQVOQzOxefKzj6cx6RsFP+6Urlnbm+WQ/Ra2JvJ7rx/sTLVaQ8Na1lxrK0F4uJLjVxc7CpwGQGSAgTgmhOQEdrdRhxpsrxUTbLJE5zJ4w4ihxo4GlAAMxTE5e5ei1Wd5jMjRg1wqRsqDmNybo7SbYmlps7ZGlzXFt+jQRtbVpp4pzpN7ee0aOcyt0gtY439lDQEAb8CNquNSZS22w3drnNPAtdX48lRWia+9zxfAca0c4O4Yta0ZUGS2Pk50S58xtLh5jKhhPznkUNN4AJ5lGXQx7dQa8oPNSmhydeC52wUSTqhJGhtpGM/Wz816GRIsapmroxkjC3YsYsD5bLL+5RSj/AGbRG7k6rfbRdCYs15TrL2mi7U2lSI74HfGQ/wDxWiY5zG7zcSAM6nLqvK+1mNxdHIWODa1FCC3PgdtCvO6Yus0N3OQsb4En2Jaa0VKwUJBdnG5tcT86M7ju5U2qcTyU2lWmZ4biS4lzycSd5P6zKvdG2W6wA55nicVBoK1iRneM/cV7Y9Jw9sbPe+UArShocK0ByJoa0+BSt5VE91ZLXVvyzDvjHg53xWyurJa9N8+I/QPg780oNM0iEEQmDkQmpwQFo63QlrL0LnOZG1nnS0ZhXG61odt9ZNGlXinZsiiptZE0u5SSXnjk5V4TkjT2m1ySfxZHv+u9zvxFRIJIM4IhBEJA4IoI1QG41c0WHWQXgPPLnUO6t0fhVVpLUxpNYyWdwxHRb7R9hEcUcfqMa08QBXxqhPCsvnVfGMVoXVKAH5dj3nvcQ3oAD4rc2ZrWtDWANAFA0AAAbgBkvO1inalct9q+OunoAT1Ex6ea70gkokhfSTJsWuO0dMfzT2yDfTjh7UwKRoJ4e1dDFKHbBifZxXn0lZBJDLGcb8b2feaRgvSwUwGAT1SXztokn9ns17OO0Na7lfb7wtda2iRjmHPNp3OGR/Xes3arOY/22IZw2svA3N7Rr8OVVdyS0J4+CzrXFkI3GK0B9LrZcHD1ZKmowyxr1Wd07K5lrkc00cJLwO4ihC1usEIN7vo8dzhnT281kdYBWUSeuxp5gXCOrVp3yz64dH0ZaxNEyUfPaCRuOThyII5LO6+txgP0ZB0LPipPJ7aKxSRH5jw4dweMhzaT9pTa9OAZFVgJN8AkkFtC0mlDQ176rPqr9MUiEq9yQVEcEQgEQgHBEJqcEjFFBFAEJ4CYikZysNAWbtbTDHvkbX6rTed4AqtqtR5PYa2ov/lxuPN1GjwLkr0I6eWryztxUn7Qdyhc+tT3rFoiupwQITgpMqqRrlCQiAgJUlGknstN6IXZ4Huxw57eiN4jNpHj7FOiulgiZIDka8FK1ya+MHMA/rem9j6riO4+cPHHxVQnINYrLTSlui2TRRyD7TC0nqvO0F0THfQFeIFD4grXeULRzmuZa20JbRr6VFW7MMe8ZrO6PaHNc0Y0cS36r/Ob7Slra5Wd0mKtPdis3a7N2kRpnGSR9V35jxWzt1loSNhyWZ0K+7OWOyN5hB21Ff8AE9VU6K9m6gvIne31oz1a5vxKttf2/JQn6bx1A+C9WiNB9laHSj0S0gd5cR7gotfh8hGf6vtY74KMvsc6YVFBFMhRCCSQOCIQCKDFFBFAEIoJJGIW/wDJtZqRyyes8MH2G1/z8Fz8LrOptl7Oxw73Av8AvkuHgW9FOXRxbFqazLr7VKVGxooFnpRUQoiQgQe72JaMChVLkleCRhVJK6kkHRU5NBRqulzijVMqlVPY08mk7M2Vjo3jBwIK5ZYIXQ2h8D9lQO+hqPAldXkKxGvViLXMtTBi0gPp4HpgljeVWcKy3WS8PEcVzTSQMNt3VIPiCV1uMhzQRkQCDxyK5t5SbPctMTvWYOeJC0TWtgdUBUWvQ/dm90rfwuVpo2S9G07wPYq/XUVsnCRh8CPesp2tz5EJFJWkUkkkgKcE1FBiigigCEkEkA+NhcQ0ZkgDicAuwwsDGta3ANAaKbgKLl+rEHaWqIbnXj9gF3tAXUqLPNWJPkNM08SFROy5hPUKSdohfUZQaUtmm7RIvTECkD8NySjqikbpCVUKoEroYn1QJTaprkDRshXht9mbKx0TsnAg91cua9Urtgz9neozhkkpz/RDjGXWeT0oyRxFf0ftBZPyptBdDvA8C4ra6+WYxOZamYYhjzsBya492YPdjsXPNZZ32h7L1KkhtG5ADH4/rLWXcRpe6DPyLPqhQa3Ctkf3OZ+ID3r26OhuxtB2ALy60itkl+x+Nqz9qc6KQRISVpJJJBIxRqmooByNUyqNUA6qSCFUg1nk+grNI/1GAc3uw8GOW9Cy3k/gu2d7zm+Q0+q0ADxvLTrPLtc6E7ESU3anFTTApqJQUqOqhVKqRSBVSQSQHSaopgRvLoZESmPdTjsH62JOdT4b+5ANpicz+qBANOCjKe5RuSpx49KWNs0T4ngFr2lpr3rj2imOgmkssvpRuN0nMt2Y9P0F2grn3lJ0SQ+O2RDzm4O7+7pXoU8fwr+vM0rwaxCtlm4N8HtKnss4c0OG0KHTWNnm+oT0xQHOSgnOTSqSCCJKaSgxSqhVKqANUQ5RkpVQD7yNVFeU1kiMj2sAPnEDAE0BIBOGwIDqurkPZ2WFv0A48X+cfarBJjQMN2CTlz7a6Obmn1TI9qRQBcUKoFBIzkEKogpAkkUEB0YOByxQLqYlQEDnvyPVKpqDnTYcOdQuhkmYNpz2DcPii4qMTjbhxy65J5KAaSo3JzkxyRmOXi0lZBNG+N3zhh3HYeq9rioygOSRMMUjo3YYnkRmPf1UmkzWCb/if7Ffa86No8TMHpZ9z25dR71m5pL0MnfFJ+Eq7zymfjBOTCnuURKARTSUiU0lBDVKqbVOijc83WNLicgBUoBpKdDG55DWNLicgBUq/wBHarOOM7ro9RtC7m7IcqrT2KxRxC7G0NHdmeJzKzy8knTTHx29s5o3VRx86d136LaE83ZDlVaiwWKOIUjaGjuzPE5lTJzVllla1xxkWUEtRipCV4onUXqBShWJYz7U4qGPKtdqdePHwVJPASKYJt4I4/HJOqgGogpIVSMbySbVJAdBqhVAppK3ZiSmHDLDh+sUqpFAHtyM8fA/A+CXbjh3HDpvUbkxyQelwUZCgbUeiad2zocuSeLR6w5j4H4oDzaVsQmidGcyMO5wyXLJmFpkYRS81+G5wBDh7+q6814OR5beiw2umj7knaAYSA8n0IPUGvVXj+Jrj71ESnvKbHG5xDWgknIAVJ5IIwlKKNziGtBcTkAKlaPRuqb3UdObg9UULuZyHitFYrDHEKRsDQep4nMqL5JOlzC1mdHarOPnTuuj1W4u5nIeK01jsccQuxtDR3ZnicyvQkFjcrWsxkNonJwajdUqBqeE0IhATNcvTG/BeMKVh2JlXtiOHX2pyihPmjgE9Uk8FAtHDgm1QqkD8dlDxw8QlXeCmgokpgL/ABSSvJJB0ApqSS3ZggUkkACmFJJIGFMcikg0FoyHEKu17/6cfXH4XJJJxNcBkzWj1H9OTgPaUUkZ/UY9tc7LkoEklztgRCSSRpGpFJJMGlFqSSRnKSNJJOFXqhyHAKQJJJpIJFJJAIIpJIAJJJJB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRlgHAABXRUJQVlA4IEwHAAAwKgCdASqrAFUAPkUSkUiikVFKECgERLS2Uq8xLAYDPl69xJhD/ccYvAC/Gf5zwN4APyv+q/7v1fZdGgB4p2in6U9gv9af952Iv289jr9eA8T+pYYZRYLyxqdFp2EVDpkAxloDl/2HtjsSb+s7kWBNLyb9QG7y1/pXzbyIlaktutP8da21Sr7sXuF02EORM2yWnyCsAI5z+bLrCh3Ks1c2+v3zBfXTVNzR/L2mFHKeuNeMARL3jk4Ad8xwUCwTX7IOn7kXUi9M/Hrg4ri+3BiebpRNSfAkOtl5opJZRYDmWZXJUTrox3X3+mbUXqMBgW1sqI8viWrU8261Hn3aFOZH+GFuIb8edDK5MO+8IemHuViQhgEGc0rCDkPuuMoYzdv/MBw2yUFKN9rtN9JrlDqpwFmGDM9eDE9pgFqsmNTOpKrknb/2A5/+IE95al/3ATnprkv6CLtfi8AAAP7/Eov//iY/PvviRq+kw5FE1DNSgfmZ31EhP03HgV02bk5KH2v7J/crdliQ9xZptlxn2ywThMe5PoNTXvtWWa7yeNA/vwc8awN1a9y4ZF5bJINAOZFvaJoOuhvlyw+Amlo/B3M+BMHXShVvQfIsyNbmdjKAHVG6eaMk9xxuYE+7S5P2YP7b4qoKsEHrTWWyuPLz76zktzpeQaKI0aekdgAG5hgo25nIyxz/TGy9OQQZyNUfaFEv6Z6qhn6Pu/i4IxtwNmVoqmUDk+hnqymfKLv9xZNHABw/fHE9OVzw9La474JZ+UwgHVw4OLADIyQw+5HnVty/OgLK0+7cteWbsKE9LW6OqGuZiWX+fuv/3AVi8iXLETlXr5UjVLnR58zOh/sGV0RFg6DWpo84cHqz/pjV3Wmq5CkNJos9Bep6dPwv3qAX7M0kSAtembSISi18zLLLeXRFFW/ov6YBltbj4rTnqFPS4MM7IP2uS0DjvCJW1Toqme6fh9cWeSILC7Yi7A3T9Z0HFrC3j59hPg+5e/kCdVThsNqWqc1jtyKcBC8rAb1z3qb28uJk+ldh8q6QlIYEb2mr2LZEm51+h2Q+1D0KTeSotFf4j5GUd2QfSTi2BW0X9WsYOwzx5nEpajmtO9bSRdIiBbAJ4TvluY/j7UPz60EtpsuWgIpN8mynGxclumA6DLIw3w1VvTTWLxhmE6dltkIpU+4ezN+LE1t3QTNFbZKGdZxLjf2hOkLAE0XhFntyZWaOdLz8/Tai19skipHM137YLfvH7stsCrCb19uiM6xIR5zjYzoVmzFWiZBNyjIbGIZ/fTNmVn//SODIGpnyvS/bse2iCT0NsTKabvjGEYvCR58B+4Uzx8rYmxUyX1/W+/GO3JroLcqRumhUDH8cq/qK+2cQZ1u/SHmEq05MF+9oQ3nYCE3zRUxnzins/RzTxwX5K6SjuCCEk54+b3ck9MGqQbS1TW98E1ZZ62OM9WteL4hWhXS3dFhZq7Ar04ZZd8mCRA5TMH3fFrTbnPPNbWqP0whO08Potx0NUnzUlEqizKbnJofHMvuMK2+WUq+gy7ta/uPLfrHHHyshmwPNlV3c/lztBD3kktHNpWs2WW8mf1SVSqCgcZKgswTWRQ4YFPRi8KC+VupvbO1ksnb39EIs09zEUPDSd7QzdPT3SVY23kYI34oyO1m6e7I33dYOf0ruG40Re6fpQDOzD6cMxOn9vBHSh7Nawnf9N5deZywky5qL/fmlLspnoi4VcdXSQhezFKF8s6U+Z7R7FPDoh7CResRxuCTG+5VbfR5hoY9eh3Q/ri5o2sme2+PYihvezFHoNDpXCoD1KP7gvzLDXpzAMIR9eRatKd0xEFma1aA4mComRqUDaAPgDGCyufAAggWdivEeGBnW0I/D+M+E0Y9jgpvEetWLQ7qi/jbHXmMjdjhuEuSLSqoJBqgp0GfgahgkL06ksXH/RbEnErFYpEW7h4Q3927jrIqhx+wa4+GCAiCgJi9vcsoyhcD5y1JL3bTqQCawt3tFk3FpzWb+duRPPmcwouAoGw5ZRPo+lgPg2ZZnPFs1LM5vJjj1OVsVyfv//dfsQ0dVZqw7IkhIWyMOk1+v2e8N7PMIciLyBeAQOD/eijmeQEoZBg4275Qwj2oNgiLSGHdruFUvYzRVYV6EzvJ+noRYA85xPbsaIJwQSZlAzRQtgCj54cN5PHUvC5C/twr6CjcQ8i18tkkqz7PpJ8AYT4S5z7tDWthZXgoUYRTgVKsYP9Q3SULCP1quAuTkeDQXihrKmgy+Jy2EDUDgWfD/Kixefj5sQsLO2rIH8Ja+LGgl0uNWbL+Ktc0l2ypyW532e8Cvfuc6doaZ6LvXECO3x2CxvsrjUhLG6XASvmy4MRFdNNyOYk1zkz/fM2SAC0K/OX+A/8kdrGYfVimzpb1EC6K/ViBasJpUcyMFJ2p4zPxLlZ95b5Ab1D7D4Lf92qkOjfbC5v7pWUKVbkiGdm//qN+m3YOYXN4pLayFimPyN8pBAeCVPgAAAA==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxETEhUUExISERUXFxIYGBcYFh8bFRgXGBYYFhcbHRgaICggGBomGxgYITEiJSo3LjAuGCszODMtNygwLisBCgoKDg0OFxAQGisfHx0tLS0rNy4tLS03MDcvLSs3LTcuLS0tLSs3LTctOC03LTEtLS0tNystNzMtLTMtLysrLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAQL/xABJEAABBAECAwMIBQgJAgcBAAABAAIDEQQSIQUTMSJBUQYHFyMyVGFxFEKBkZIVM1JTscHS8DVDY3OToaOz0YOUJCU0VYLT4Rb/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EACgRAQACAAUCBAcAAAAAAAAAAAABEQISITHwBCIUUYGhAxNBYXGx0f/aAAwDAQACEQMRAD8AnFERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBEUa+XXnLkw8l0EUUL9AZetz9RLhq2DW6Q0Ajq677kElIoPPnry/dcf8T156a8z3XH/ABOVoTiig3025numP+J689N2Z7pj/ielCc0UI4vnoy3vDTj4zAbtxc6hQJ8epqh8SOi+JfPZlgkfRsY0SLDn0aPUfApQnFFBfpvy/dMf8bk9N+X7pj/jclCdEUFem/M90x/xvT035numP+N6UJ1RQV6b8z3TH/E9PTfme6Y/4npQnVFBPpwzfdMf8T09OGZ7pj/ielCdkUE+nDM90x/xPXvpwzPdMf8AE9KE6ooK9N+Z7pj/AInp6b8z3TH/ABvShOqKC/Tfme6Y/wCJ699N2Z7pj/ielCc0UKw+eTKcx7jBitLappc+3eNfHw8aPRW3pvy/dMf8bkoTmig3025numP+Jy99NuX7pj/iclCcUUU+SPnWnysmKGXHhY2R4ZbXu1AlriDRFEWACLB7VqVlAREQFzp53P6UyPlF/tNXRa5087f9KZHyi/2mqwNHXreovYePgspj4WOWgul0ktBrW3Y9+1fLZMvh0IA5c7Cd71PHh3V32qqxDYwSC4uFCiNvn1X0Gw+Mn3hUp4tJrUx/xabH3rbvNhwyCfIe2aITACKgWgtBMgHa1fV7j8LRGst5RGkNJPXV1d49xqqB7u8/ZccOyY4i4i32KILQRV34qWIoOBOyy0N4QYS0MbGGt53PL6qtPStuvXuVfyn4PwvHY9rsfheNK9t45lY0NOkjVq2ce8DZveoIs/LTdraDXfoG/wDPVexcZj79I3v2N/autgdvu/cZC8psHhg4dJk42LhPDH4reZG1gDiZ4mStDqOgFrnC6sB3io9nzIhbvobWN7RGprQ2rtoDtG5ogfHqgru4tj0af8R6v2Xb9Oz4lWXGc+N7AI39+7eWBe9gh1bV4d9r3DzWGJoOK2R4L9UjWM7VkaQWhlNoA/PV8FThzWDI3gikj7Xqg1gJ7BAGsMuw4g131SDHQ01rpHMD2ghpBJBtwc4GhudmO+/5L5yYHRvcx1amuc00bFtNGiOoWVycyNov6Kxh2ADmMB77I9Xv3fcPFVYcuItZ/wCDYaYwOc1jS1zhep/sUy7HZ6ClbVgFchsVCy8mhddLrutXn01jnt0wRU1w1taxjjIA4WB2AWigRY/SvuVHPyaeSGRRBznlsboY9TG6raCSyyADWo9dJQUPVf2n+X/C+S+AdS8faFkZJRygOSxrw5zjMYY9Dm1s2tOkb76h1ultGH5SSYuI4tEYZHFGWtDGi5JpJXGyeg1DuFhRGiibH/Sd+IJz8fxP4gpAxfLvIfjiWIR8ynjS6Njm81kmNH2a+qW5JG/f8t6bvLLLk1s7BZINL7hZ7DgWHcPOk24AUO9BormxmyHFuwoVdne9+7oPvVKJhcQACSegX1NA5lXp3Hc4H9hTHmLTfXu+xVWTwJ2YcjJncuVw5nq3w8yKtOg2NTdRGq9uhAO4CueNeVcWYxsZjx4akadUOJocTpcwNLuYeydRJFbloPcsRxCMSsbok5bhqFE0CHVYNd2wVvjcPHMBdLG1g0HSwncsFNJsAWdyT8T4qIr5eI6MkHcWQCOhr9h+C+JpAapjWUO69/vJ/kq84lnB1hu4J6+O9igscqrZvN6f/MMP++Z+0rp1cyebz+kMP+9b+0rptSUERFAXOXnfJ/KWTXXTHX+C1dGrnLzvf0lk/KP/AGWqwNtZ5PcBreI7DftZB3A3Gzv5tYHjUfCYHgN4ZJI3VoDhky9p17WHke0N6FrXcova+XmSzRapZms7ZbQBcWua2vXW6m6W7/fY8zciP6RLqDCHSxPGsP3aGOa6tO3f9b7N0Ffj+ZhPhc2DCkxpWPjLnOme+2OB7OlxIG+k31TyI8p/ydzZ2aJJXaYxC9rvY2dzBIDQ3tumr71jM17C2TSANoroVvqdf2rEqq313nCj1c0cOwmS6tVtip+uydXNN+N+zd96vz5fuy2OM+DjTaK0h7m7dntEF4Ha7I2Hx8FGav8AEgL4iKsCWMkag01pfdF21pQk/hflyyJhjkdFw0CjFojMzSSTzOzH2WkCva6677lat8ocXd8PES+Zonkjb9GmAdJoc4tJcQADuN9h3BYWFmMABjw4zQXHs5DWyS2aAAI17bEgX9b4KlmwYxILIdMxa4F8bmtgFxPbs0kGySPq/W6ijqiL13nRz2OdpZHTHO3omheiz3C9h8yvmHzoTAW5nb3O2nRd2OosBYTD4mx2e6SVsMQOpoDWBsQc2mtJb03AJJ8SveK5EDsxkmlro26Oc5jbj1mwNxtpuvn81mcVTVPTg6fNgjHmiLmuc2Z+PzoZkgc5wZ2aJDWkAtto9oOFHc7V++qrPOhM41Gwh3aILqI7LXHoD16j7ViOPZcD3HTofUZdIYh2eW2VldKF6Sb8PkvrjubjvbGGGJzqk06ABpZyXe1VUb/nqsxjutN28XSZc/fHb/OerK4nncy2gtkZRaaAa0AitiDqF3a9yPPBl7CNou99TWn5UG72sLxnNxn4jWR8t7joEbWj1ocdnagN76V1s/YvMTOxm4RY7lhzWuDmEVNzgdvjVh3ftQ+KZ9LprwUZ8ueNr5zZtGT5zsqPIdG6aAxN06ZDA9hkBFEtbpdVOBbvt2Vr+Z5TQ65JY3MMkheXajKNdyOeKa1oaN3vO++694fnYzWTNkMYOp/MDh2y0g6dF/Gunx71YeSOTDHzOYGRudpc3mN2MR/R1DfbVXjtvVpOPfTZnD0l5O+O72056qreNMlDTkxtbG5jxdy7EvY8Ntt0XGJrga/q+tbH5jyOFtdbG6OvaDpaHTurfx6dQqnCc2Bst3G0ES8oyfmxTiBd3W1V8OitY8jH+nmWgINRaHlvq+ZV7/V6Xt+5XP8AY8JpE541mv3z8TDF8QdjNd6mPmNrZxe8dodRuB8D0+sszzuA/q+J9B3xda3+t0u1beUGVjOyYy4a4xp53IIGo7atBPZvYb94679Mhwbye4VLAySXP5MjuYTGciBjmVI9rAWvbdljWH/5bbLUTcW4fF+H8vHOG7pYcSi4cY+bix5RDA7W2ZzRZMkDWUWWaAkff2K24PDjTOLXRujNEt0632QCTdEaWgDc7nfYFV8jHgjblsZI6aBkjmskaWkvaJscMcCOyb2Nj7F9x4WO/GaRE92ovAIjc6YFrierQW13bDp171pyZCTyYhaHEig0Ek6ZugBPh8v8+tWdcw3wPkjZyCA+SNl8w2A94bdbixdrY2xw0wDGa4AHtDBk6tLT2qjGomz3V2TdWLssx8H0uAaHMcHwUGQ8ppPO7JcyRrXHfvrp8RtA83BvPwz/AGrP3rptcx+bb/1+H/es/eunEkERFAXOfncYfyjlHuAi/wA4mroxc7+dnGe7iWSWtLr09O7TFFZPh7bR8zSsCwyuPU6X1TXCN0rd5WtJ0uO4BbqJ+X/KuocDBlzo4HSOx7lt79gBUdtY1+2iyBXxPcVhM3hOQZJqiDtb5S082MbOc6ti+x16EWqvHuFzPmcWRtc0mw7mxgvBA3Ic/wDcP2Iq+8uOHY0E0zMeV0rdMJdqdqLXanDTq79gD8LpaistHwmdsUlxgWY6p7HdCT9Rxr7Vafk2bry3V/P/ACPvVgWiyGFCXRGgDUjDvpodh/6Wx+RBVI8Mm/Vu36fs/cfuWR4fw6XluYWFup8W5e1hDaPaGsi+7pvug+cOE6oG8hrXNnjcZQ8EubrBqhtQBHTwVw9ptpZTR2QQdO+ws9rc2QT2aonbwOXx+LyRSCDkYxa/kR63uhMhawMiD2dvUC7TqAokE+KtMKFkk8ZBe0tcxwaIHtY8MaLvs0L0731P3KIwXEcEjJfGCHEuPS/rG6rr3j7/ALFcN4hJBHJi6WmzLTjYoTMbG+xtfZYKutJ332A94syRuS57OW01EQDLG3+qZsWueCB8CFYzRyudqJiB2qp4gABsAPWbADYBVWV4dky4ZlZpaSWxyiwR243aG3dEt9a6299DfrePhwXROjJ6OZLXX9U/x67b2F9ySyuLi7k2WFoqeEAW9ryfzneQT83JzZSW6uSQ1rhtPELJYWWfWbmtIvwaFB5hh+Py8ig4HW2iD0ex0bt6oGnOoi6I3HcfOJB8wkySAB2RQvYNY1g36E6WtsnqTdbr4kMzmBhMND+2is0SRZ5m9Wa8LKvuGcE4hPE9uPj89gNOcx8btJNHTYftdNNfAKi2zsB0j53Do0m9j/xQ7+vgrjMzZc9w7LW6Oa81Zt0mjXX6Lew2m91mybWR4n5O8Ti5rzivjicfbe6NrW32fac8aSdRb8dVd6xWFw7MjNsZHuP18JHUEEes6ggEHxCgoRYplbCwdfW+J6P32FnuVdvEJDF9D0NsEx6t7087n1p/S5n1v0dqvdfbsLIjYx2iPsh4fc0JbT3VR9Z0N19qsQ2bXzNUWvVqvnxdbu/zniqKc+E9snKq3dw6X399Vtvus3wzygGPA2PQ5zwXhw1FtW9x/RN7UFiJmyudruJp2rTPEKAFAD1mwAAA+SpHEf4xf48X8aDIYueGxyOLNpJJBQ09mzHIKD2ubQ01VfsWS4PxVrgWchsovbmGNoaS1xOkMjaLIBO4+r9+AlbpiDSWXzHGmva/bS0WdBIG/iti83fCn5Esgbo9W0SEOqi3tMIBLXaT2xuBdAjoSgv3SAbnCxtrvtt6Xe+3TuWCfxVjJQ/lnZzXtaBDpq9QAdydQHdd38e9SJjeSeZrbrkje3U3tHTu0Adk1CNGpwPfsHbbi1HHlpw1+NlvheWlzAyy0ANILQ5uzQAOyRdAb2pCL/zcRkZ2Ge7mtF/ELphc1ebzHeM/F1Mc2pY+or2ia6rpVJBERQFzh53JXN4nkaSRswbHxhZa6PXNvng/pPI/6f8AssVgY7HglZPNkMYxxZM90erQbc3Ismi621pPduCR3q247nySZLpMiKPmODeyD2faDhWlx60R1unHv3VrxPGfzpuw/wDOy/VP6bvgvMEzRutgcy6BPLsadTXbgg7W0HbfZVW45vGsd2RG8cP0BnLLoXsDXStLnljGtYzSWtHZaXddrvekHFoRlc36E9wqVvK5TTPzC2AOl5ejlB/YJIAoCTuNX8QcUL5A4Pjj0lz3erncNUgeXXr7dPNtGk9nqvMbI1drUwNPqWxGOca2EY9DmbPaWujZbnGjfh0xr5N9t7/XyUuG8ZgY2Ynh/MY9j3NDWtLYmGbJqNxcDoj3adTaPYHcqWTxGJuC6E4mt2ljROGDl2Gx6XFzmB4eGtOloOktk3tZRrpW3ckLpXukkDSyQND9Uzg/U3slpEhbof3i/nbZMcpxhE10T5BC1haQ9rmtIY4tsnlPJc3UHdQDSJ21v7NP4jICGOADRyyQB0HrJDQ+Czp8m5Pee6//AM9vr8FhOMyvfpdITqdGS4kUbL5N6oUt4dPOByzgwWQDZyZNfb1uvVe3su3HZ6AbbDbDWeOYfJDZD9HdZDaDSNyC6yNZ7XZo/P7rHh8gcdPKiOza7DnEl0jWDbWN7ePsC3HM4xkRML34MGkBpd60l25I3obbkXXSh8b0zGzgJXyHW3WSex13lZIRuRsQ0j7ehRWUdwgiyWBo6WYXBo7yfzncPHuVR/CTd8tnd0gfW9/2vXf9iozcdj3LOc0kADUGuA8dtQ/nxVA8cd+mf8If/aoKmS1jXBhZBqIPZ5RHRpd2vW2L8aWx+RHD2T8PyGvnixh9JbRkaHMsxtJAa47kNa4DrQJJ771EcR7VmWc7OGmqabaRv6w+Pgt681/CIcnCyGSuewc9tFhp3sRuP+bW/ckjYfLTiOrg+S0xP0QvxGNc++XM3nxkPY7q4VVEEiqNndaNDmwfQGRGAc621MQKuw/2wNQdy7ZoutJulK3lnHfDnQ47nNkDscNdo1EATsLjpHXvPSh8AFG03DcpkLII4ebTeXrLnMAaHtlFtJLb1/W60KUWK1tr2afUy7g9lnf/AG0fwWvrZeJYWQyGQywujaWsokk782OhuNj1+Oy1pahBXWFhcy/WwRVX515bd307Juq3+zxVKWaw0aWjSKsCienXx6f5lXH5Tf8Aq8b/ALaH+BBVbwfa/pOEN6ozb9as00iu/wCX3L5bPNivPKyAC5tF0EpLS2/ZJFXuLo/BfH5Tf+rxv+2h/gQ8Sd+rxv8Atov4EFwPKXOHTLyR/wBV3/KsczMkleZJZHyvNW57i5xoULJ3OwAVBVZtG2nV03uuu3SvjaDY/Nu4/lHG3/rY/wB66bXMfm3/AKRxv72P966cUlBERQFo3lZ5scXOlfK+WaJ79N6NNbN0H2mnYgN+VbVZveUQR1wGDiE+tjeKzx8tz2C4Md1hji0f1Q8Fh/KfifFcOYRHiUslgHUIcdvUkdOSVJzOExNc58eqJziS4tOxJ6nSbbf2LFcX8jIMl4kllnc4AAUWDYfAMU1XRqHFeD5uM05h4lM+WZjQ8iGEW2hQ3jI2ruaFlvJjhWXkY7JjxPKYXF2wixjRa5zeph/m1s0/k9FI1rJnSzNbVBztI22/qw2/tWSxsdkbQxjQxrRQaBQA+SRdmjWX+SeSbviuWbFfmsfp/gp//KZP/uuX/hY3iD+p8QFtaKojnjXmnjypTNkZ2XJIQ0F2mFuzRQ2bGB0+Ct/Q1Bd/T8+9hepl0Og9npufvUnIgjF/magIo5+cQeoLmEH7CxUfQhie95f+n/ApURBFfoQxPe8v/T/gX0zzJ4gIIy8uwQRtF1G4/q1KSIIul8ymK4knLyrPgIh8OgYsjwnzYjGa5kHEMyNriHOGmEguAoHtRnelICINRb5HZANji2cDd+zB13/sviV8HyKnu/yrm3d3og6+P5rqtxRBovFPN2/Ii5M3E82SOwdBbCBY3HSMLC+hDE97y/8AT/gUqIgiv0IYnveX/p/wJ6EMT3vL/wBP+BSoiWIj4l5mcSKGSQZWU7Qx769XR0tLq9j4Kx4J5q2Twl0eVIwOAtrmMd3Ho6hXU9ymh7AQQQCCCCD0IPUUrDG4QyIaYnyRN/RBBH2aw6k1EASeRTRl/ReY+9YZrsV1q60fvWS8pfNxFh6bnlkJ8A1tfeDalV/kNAZ/pBnyOZq1XcdX8uXSyOT5NwSuDp9eQR01mm/a1ga132hScy6NU8jvNli45iyRLPI/1cgDi2mnSTQ0tG1nv/RHxUhrwBeqoIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSEhIVFRUXGBcXFhUYFxUYFRcXGBUXFxUYFRUYHSggGBolGxoXITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGA8QFy0iHR0tLTIrLSsvLS0tKy0rLSstKystKy0tLS0tLS0tLS0tLS0tLS0tLS0rLS0rLS0tKystLf/AABEIAIUBegMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAwUGBwECBAj/xABUEAABAwIDAgkGCAcPAwUBAAABAAIDBBESITEFBgcTIkFRYXGBkTJSobHB0SNicnSSsrPCFCU1QoKi4QgXJDRDU1Rjc4OTo9LT8BUzw0RFlPHyFv/EABkBAQEAAwEAAAAAAAAAAAAAAAABAgMFBP/EACIRAQEAAgICAgIDAAAAAAAAAAABAhEDMQQhElETQTJhcf/aAAwDAQACEQMRAD8AvFCEIBCEIBCEIBCEIEKytjhbjlkZG3TE9wa2/Rc86ZKjfnZzNauM/Ju/6gKZeGc/i8f2zPqvVFh+SC+6jhR2e3yXSv8AkxOH18KbpuFyn/Mppj8osb6i5UxjWwcgtSbhbkPkUrB1ukLvQGj1puqeFCtPkiBnYxxP6zyPQq/a5b4kErqd/NoO1qS35LIx6m3TdUbzVhFzVz90rx0cwICaA5ayO5KIdmb1VrdKyfvkefWUszfjaA0rJf1D62lRzEsXQS2PhD2iP/VE9scJ+4lm8J20R/Kxntib7LKGYlqVRYVJwpVx8o0/NrE/Pp0lGi7GcKdWDymUh7BKPvlVhdZusbL9spZrpaDeGCYGzqSI9kjh90pePhjP51EO6b3xqqA5GJVFws4YYvzqSQdj2H12XRHwvUp1p6gd0J/8ipe6A5Eeht2t+KaulMMLZQ8NL+W1oFgWg5hxzu4KTqkOBk/jB3zeT7SJXeihCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIIFw0fk8f2zPqvVDBXxw1H8Xj+2Z9V6oYlAqUo1IsOaUuiFWpQapK62aUCl/8AnpWJtFqHLE5yQJArBKTuglUb4kByTusXQKErN0ndBKo2JWcSTui6mgoCtsSRBW100LB4Fz+MD83k+0hV5qieBQ/jE/N5ftIVeyihCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIIBw1/k9v9sz6r1QpKvnhu/Jzf7dn1ZFQRcgVaUsDoudqUDkQuCssck2uWWFAsFrUHLvWoK1qDyUCF0Fy0usXVG4RiWpK1xKhXEsXSYcgFApdYDloSsXQKXWbpO6LqCw+BI/jI/N5ftIVfSoLgQP4yPzeX7SFX6ooQhCAQhCAQhCAQhCAQhCAQhCAQhCAQhCAQhCAQhCBKpqGRtc+RzWMaCXOcQGgDUknIBVrtvhhga5zKSJ02HIyuuyMk5BrG+U8k6Xw9N7BQ/hm3tmlqZKEHDBC5t2j+Ufga/E/qGLJvVfM2tC93nZj5Z9EZ96C3ZOEGubyZI4GPsMTeLkOEkA2uZM0meEas6IP8N/8AuKsdubWmEwHGHNoN3co3zGZdnoAuP/qE3856Agtz98uqGrYD/dyf7qdd3+EV0smGeJrY8g6RgdhjJNml9ybNJyvza6A2o520ZQLmQW+SE6bv7RkcJAXEAhoI0BabkYgNc7HNB6gC0mlaxpc4hrQLknIAdZTTudUcZQ0zr3PFMBPW1oa70gqieEPhIqqqWWnYRDAyR7A1mbn4HFt3vPTa9ha3XqglXCpvtTVUX4LEHuDHte6WwazkhzbNBzcSXWGQuq9l2RgsJA9jrAlpGlxfntftsmvYbrl5OZu3M5nyZPeujau1JOODXSE3a2znco5ZAEnmyCDodQs6T4D3pN1M3pd4D3rmdPL53oCRkqXgXLh4BEdskBDcYDsF8OKxw4rXtfS9s7a2SYcuyCdxp2txuLXOc4t/NxgYQ4DptldNQkQdbZFpO/JcpnWhmvkgVusYkiHLN0CpcsXWl0XVG11m60ui6DfEi60usXVG91kFJ3WbqCw+A4/jM/NpvtIF6AXn3gN/KZ+bTfaQL0EooQhCAQhCAQhCBCtq2QxulkcGsYC5zjoANVWtTwxRgkNpSRc2xPc13e3izY9V13cNVe6KkgDDYuqGu/w2PeMuezww9wVH7clk40uLsZfZ7iQMWJwxO0y1J0QWweGM81K36ZP3Qst4YH/0Zn0ne5UqK13SPBZdtBw5xn1IL4peFhrX4KmkfHoQWm5LXC7XYHhpt3+sKd7H23BVNxQSBw5xmHDtacwvMm0ql8kMj5HOe61sTiS6waLC5ztkPBcGwd6qukeHwzEW5nAOae0HO3YQg9dJi3q3hFIzkN4yUguawXNmjypH20YPScukhu4NN73bTpXSvjayRjzG8NJLScLXBzQcxcHTPTVQzhFqz+HSgOItG1hsSLtwYy021HKOSDqdwl1R0jgH6Mh/8gWn74taf5gf3b/9xVLFtSQm3GEHW1hmOrLNK/h0n86f1fcgtUcIVb/Uf4T/APcW0nCbV072ippo3sc0SMLMTHOjIu4tuXAuGuE2uM75EKo6jasjRfjXG+gy9yeq55McRJJOJnpDh7T4oPQe7O8cFfDx1O640c05PYehw9ouDzFO68lbrbyVFC/jqd+F1uU05seNcL2849I5iF6vpJsbGP8AOa13iAUHl7hJffadYf65w8AG+xcG7pzHy3fZpff032hWfOJvtHBcuwDmPlP+zCDTe3/uNPxfUSm2qpKiNrJJGPYx+bHEEBwFr2PPa4v2hOm9Qu5nY71hPO3N6Y5onYoy6WZh4wYQ2KJ4D+L4kWJyc4m+IggNyFgGg17ubNE3wknkNzazzj0u6l3bNdaWXu9a6N3jG1lg4tJHkPyv1sdo7s1XLRH4aXs9oRF+cF8+LZ8Y818rf8xzh6HBeYdpPxTSu6ZJD4vcV6L4IJ70czfNmd4GKM+u683TG7iekn1op02CfK7R6nLn3ibyx8n2lK7DOvb90pTadQ6KeKVoBcwh7QRdpLHhwBHOLhA3VME0LmiYOZcBwvcXab2IvqDY5joKd4dnXiM7+yNnR8Z3X1Lo2tt9tQx0fE3e9zHGRwsQQGtIYB5Awi2pvrrclyq4hHTiMtcwkXaHWs4fEeMnD0oGyid8Azqc8fVTHPLZxHQSPSnihPwA6pHeloUe2kbSP7fWAUA6dZgkue72hcZclqM8ru9oQd4ctsSRC2CIUBW10mCtroNroJWqwSg3RdarCDa6AVqi6CxeAv8AKZ+bS/aQr0IvPXASfxofm8v14V6FRQhCEAhCEAhCEFRcPU+dJH1TOPjEB7VVu0Yg+fDpk0XGo5IzCsHh0mvWQs82AH6Ujx90KASu/hR11AyFychkANUDNtSAtdgI5d+bR3QQOnqXM+kkY5vGNIuARfnBzHoz71KNsxvp545gzDI04g11nO05N2DJovY53PqTdtjaPG8VG1uFjDcAgB2J9i7O5LhcE3PO52gsEC9UfgZOw/UKjV1Iqo/BP7HfUco4gvr9zo/+D1Q6JWHxjt7Ey78VGKrqj0OePoNwexOX7nI/B1g+NEf1XqN7yzYpap3S6c+L3H2oI3QULZYDfJzeUx41afaDzhMbKWWaTBG0l2WK2mbg0EnQC5Ck2w3sEVnuw3yFhdx6mtGpXDR7WNJO90URwubgeHE48JuHZtIwkhxGSBo2rsuaml4qdpa4DLnGtjYjI55ZX0Us2ibRM6nxfWCZ96tqGofEGteyGNgbC1+HGGuOJ13NADuVp1AJ12s74Jo+PF9dqCJU+ll633XmxUdK7pghPjG0ryRTL07ufWH8Ao/m0H2TUHn3fz8oVnzib7Ry5NhOzHy3fZ/sThwjR22lWD+vefE4vamrYzsx8seljwgeqihE0sWM2jBJeRmbZZAdJUsednk34l19NOYac6itVViMYj2AdJTZimlNuUT5rRe3USThB6s02SbT7j6DCWcS7CdRbLtGeR6wozJQtZK58b3OYRYYxZ4zyBtk7tTJPFNCRiDm30xCwPyXtyuuygr8Zwuyd1+o9aS7LNLg4GZbx1bOgxu+k14+6vPcos49p9avrgTd8LVjpZB6HTe9UXtBmGV46HuHg4hB07Fdme0epycZqMSSx4rhgzfa17X0bfnKatknlHtb973p5llwjpJyA6SglP8A1SjGlL9X3rFTvBTviMJgJjP5t22B6W58k9iitNs6aY8kEnqLQO5zte6y0rKGeE2e1wvoH25Q+I9uR9Knym9bX43Wy7mMawhhOb72OoFrajUKMbYHwru71BPcUgcLj9o6QetM22v+5+iPaqhvS9Hqez2hIlLUmp7PaEHYCtrrQFZBRCl1kFaLN0G111U1BLIMTGEjpuBpra5zTe+XoU22VNHxcmOO5u5sZBIDcDy1t284wjTpJOpuCo+NjzeaB2uHsWw2JL8T6X7F21m0SCQy3W42DR3/ALCfWuZ7qgDGcYb0mOQN+lewHXZLdGmg2HJ5zPE+5bf9Df57fApak2uQQ2Tn0IsQew8/Zqu2tq+LaHZEEgX5s9D2Ih04PKobOq/wmS8g4p8eFuRu5zHX5XyfSrKPCvD/AEaX6TFTZrX9DfErU1b+hvpQXMeFmDnp5vFnvQOFyl56eo7uK/1ql2TOc7CSBYF2XUFz1NSQcLc3Wub6NHSSir0bwt0XPFUj9GI+qRLx8KuzzqZm9sZP1SVQsNDUPBc1kjusM9QJufBc4qC02kFs7E2Iseh7Tm1SWVdWPT27+99JWuLKeXE9oxFrmvYbXsSMQGK2V7aXHSn1eat1dpcXPTBrGtcKqJ3Gi4kwFzWPjJ8wgnLrK9KqooPholvtP5MMQ9MjvvJk2ZtuGB7pGxkyOJ5ZtcD4vmpx4XH4tqTjzREP8ljvaoTm52CMEm9rgXcXeawc560EwO9EDjyork9maZd4poZ8D4mFj2nMZYXN7tCFz1W7k0YDpGDPmMrsXo5IXCLsIBvhJtyrYmutfC62RBGYI16rLGZ43qrcMp3C1Yfgndjvq29qjqfq8/BH9L7o9qYrLJF5fuc/IrPlRep6h9aOMxi9sd8z1qZ/ufGWpqx3xmehjj7VBJ5wxuI9A7zbIIHrYZo6ZluLe95FnSOLb9jRfktXUNp0Z/kh2DB71X5mkncA25xGzGtF3O+SDkB1n1Jwl3enYMTmgdXGku8LFqxyzxx7qzC3qHzeaOCojaImFj2G7TybEc7Tn4Jq2y74MfLi+uFyUta6NwY8nCTa58pp5sXSD0+rRL7YPIb8tnoJPsWSIxSr0nui0/gNJ83g+yavNlDzL1TunSfwGk+bw/ZNQUFwrxYdq1Y6XtPjEw+1RrZZs79OP7w9qnHDdBh2pIfOjid+pg+6oHSusT+ifB7fegcap2OYNvk0DuJuSe2wPfZTLYWyGCMSOcRzgNtYDvGqhrY71Bb5wFu4EeshWjuNQxyB0cpOHDcdvMbrx+VlfUevx5PjcjVVVELmOjfZ7TkWnn9x6wq6rYTFIQCeS4AE6lpzjJ6xl4lXHu5sOndVStmIwgcgX1OLUdwPiobwo0kLa0xwAWBgYbecOU7wBHgVj4tu7P0vkyevtMuBCS81QemKM/rO96p/eiDBV1DeiaUf5jlb3AiLVE46Im/XVdcJNJg2jVD+tefpHF7V7njRqgNneB/WHvTsc356AAfSvf0Zd5TRALE9ntB9ieKNoMtj+cAR3H9oWOXVZY9xON36ePBicTfwA7Au3aEkM0Tonm4OltWutk5vQR7wuncenicXRytxttyeo9S76Shp45HiWF1i7kuINgAuRu/Le3S1NaUvM0skF9TcO+U02v3j1BNu2Ryx8kesqS7wuZJUudELML5ZGjoYX4WeiybKrYVVORJDTTystbHHFI9twTcYmtIvmMutdidOXUdS1Lqez2hOEu7tW3yqSob2wyj1tXMKV7Dy2Oblo5rhzjpCo2WwKBGeg+CLIM3WjsytilY4SgRLMipG6fBC8jXHIB2l596ZjEnCd3wLj5smI9mIH2oHndbZnGOFrXGeI52GlwPOdr2KdxUYiGUl+m+R7s1Et0IiC3OwJFz6PWFPt8tgsZE2Vj73tl125ly+e3LO/wBOjxyTGT7V1v3saNmGWKzQ92F7Ro19iWSNH5uhB/aow6oL6VzXatcPWQR3EHxCtLfHZdIzZ5fHIXPLomtBI8rEHO6/Ja5VUxt45jzEn7TL1FezxsreP28fPJM/TkbVylt2gkNyLrZd56V27Nkc/nu4mwHMOklPu6W8EMVJJDLhbZxLxljnYXBwjztkLOzBvfBlYEFo2fCwzSSRnDHiOHFzg/GGQN72va48F6GptQNtM4Xvdr8+nJb7JbidiOrnX9JDfBoy+UtafKfud6iujYEXKtfNuXp//PitfLbMLpt4JLnNrG2Zs9jGBwebkAm9rHwCZN+aGN8XHi3GMti0u+M5EHpIyIPb1WnG7sVLLTOEluMGQzsdMrBRPb1MyKnnDoiCWOa0nnc7ktPibrmcVuOcse7kkyxsv6QTYcmF7c7lkje8NLXNPgR4L1kvI8DbGV/MHWHa1oB9I9C9axG7QeoepddzHnbhUfbadc7zeKt2/gsJHpXNuHHHGXyP1baNhtpleR3yjcZ9vSleFRhdtOvaNSYrf/EhHrsu/cKYSMdE1ge4lsrcr3a5rWnLqcPStHk2/jum7g1+SbPNbHHLC51rmxtrbqt1qt9sQ2Dh1H9XlD0j0lXvUU74qEscxjDbS4vbqVNbxYbho1JN+zO/o9RXj8fczkezl1eO1H9pH4Pu9b2+5NDQnTaR5IHyfvFckMV103NXpwGQ22fVO6Xn0RD3qqNttxNY2+pA8Rn+qD4q7eCSlwbKd8Z0p/VDfYqU2nkI3H81zSewgtP1ggf9z2MiiMrhypL2NshG02a0dAyv4dCk0EUUw0xHrv6E6bq1tE7ZjWSMaXsa+J2QxB1zhPeCCnHdmhBpZCI7mx5XRlzFcvl3eS7ro8Vk456VDvTRsDnNbpoOq5sRfqJB7k211ReGInU5n9GN5PpT7vWWtB5zc27bj9g71HNqNwxsb0Mf9UN+8vb49twebyZJn6NlCMwvX2w4sNNA3zYox4MAXkfZcWJ7W9JA8TZew4mWaB0ADwC3vOo3h/pLVcEnnQ4foSOP3wqrY3XrafVf2K+OHTZ+OOmkA8l0jPpBrvuFUqaR19D/APeSBWrjLsL2+UM+0c4Ut3K3obE/lOLOZ2Vx3tsSD2BMWzaYPic/jGtcwMAYb4n3OF2H5OpXVR7L494Y2JsjjchpsDZrS5xDiRbIE68y18nHjnNVsw5MsOku3x3gow0SU7iZSOU5wLWA9N3Wc49QHeq/psT3GZ5J1wl3lOc7ypD3E27SVLW7mVDTydmgOF+U44wCBfkl7rX6LJhvieMZNrjEQMwL8ogdNr5KcfHhh/FM+TLLtYHAkP4RUn+qZ6Xu9yjfC9RW2hKfOwO8Y2+26mXA9Q4ZKuZtzAcEcUjsseFzy7LqBZc9JPQQGLh2hcyaOfA7i3RhpkAJYHhzrNc4ZAkEa6rawVQWWd4jxBC6yDkW6jMe0Lmh5ZBGlwnehZEWSB5fxgDOKDcOAm5x8ZfO2G1rc97oHvdbedsDwX3HTY2J7tCpRvdwhsqo/wAHp4zdwsbAOkcLZhoFwwdLr6KDbOpsbyDJHHZpdikthNi0Yc9TnfsaU41MssTHNFVTNAB5MRaHOIOmTcja+hWmcfHjlv7bbnnlP8Ms8JjxB9uMdbEBmGNHks9J8exXhwMi2zu2WT7qpDZssQlBmaZWnECwPwuc4ghpDhnfFY9dlem5Gwqilo44nBuIlzyDcFpfY4TlqMluak1xDpVTfugqMOgppxYlkjoz02kZiHpjHip4+Gp5mtP6XvCje/ewausopYGxDGSxzOWy2Jj2nUuyu3EO9BAeA+g4zaHGHSGJ7r/GdaNv6rnq/supVRwZ7m11CyYyxtD5DGMpGOGBgcRmDqS8+AU2/Aqo8zB2u9wQVX+6S2by6SpaMiJInHrBD2Anvf4KG1W700ENNNI3kVETZGOANrkXwk+dazusOy0KtzfncutrmxxiWnaxri8h5cbuthabYDoC7xTnsvduVtIylqZYJGtYGEEktIbky12ixAtbosgoM0y6KWMEPadCc+9jVYe3+D+SK7oeLmb0Nla147WyZHtB7gorT00tNMXmlc8Z3ZJGXtuWludsj0ghAzUFe+D4J+fmnS45i0nK/SD0dN1YW6G9cDP409zgAcIMbnG/QAG/sUHma0twyMeR8aN/rskYYIAPJc4dHwoHgBZac+HHK7bMebLHH4nTfPbraubDTs4touGt1wX1kkIyxHmaNPFM9RShsRYwHQADnNrW7V0CaMCzcLQOYCwHoWpqW6h4W3HGYzUa7bbumePY77cqNx7jZdNNRyx3wRuAOotke0Jyo6uLjG8fK8R54ywjGBY2wh2Wttetd0lVssH+M1JFtA2K4NtMRI5+q2YS3RJs0UlA7EH2LS292nRwt+Yen4p7uhc7nOYcbL9dte23P/ztC0EgkOGMmQ62YHONunC2+WicYtiVLvJp5e9pb9ayvZ002dvGGOa/O4IPJcO7JxBC7d6N9ZK7CxrQGs0aM2h2mOR35zrXsBpmk2bl1ch/ip7TJA0faJ1puDSudoKdvy5j9xjlrx4sMbuRnly5ZTVqJspnGNwY1zmxtu9wBNr5YnkaXJPiV6ooHXiZ8hv1Qqn2BwUzNeDUVDOKNuNjiMp4xoN8BJa3kkgXy7LGxFvMaAAALAZAdAGi2MHnjhPJbteqcPOh7/4NCuPYr5IXipo+WAcTog4NmicfKLAcnMdnduh5uqwOFDdWfjZKqmhE4nY2OVuAySRlgGF8QGYu1oBPNYdOVb0OxJQ/4amrmADIspp8V7jnLNLX06lL0siQ7e4Qp6hoa6nLSBbON7B28o2v3qE1EjnOLnG7jr2f89WXOS81+zwGkgVjnC1hJTzNbrnyi3ozGi4aZwZjxw48UbmDE1wwONrSNy8oWy7Vjjjj3IyyuWpLfRmrRoP+ZD9qXoIgSFvPSOdmGPPY0nXsCKCjqS9oFNNm4DEYpA0XNruOHIdJWbB6T3JpMGzoW9LHH6RJ9RXn6ogxswnoHqzC9KbLLWQxx5nCxrbgGxs0DJUPvNRNoS6nna1smPFHOXlrXw4bNDWHLXM84ItpYkGHZNVNSuDy1zmaF2EuY4DQSgZtI84KW13CJDLHgjiGK1sLXF+nQ0MBKat3Z6Z5dj2hHTEYcJNnNcTivexs21m5nzupd9fxPFucNqU0rha0bNX5552FrDPrWrLjwyu7GzHkzxnqorUB8z8cgsAcm+q45h1eOa4Nr5m3xfW9vuUjopYQ9pl5cYvia14DiLG1jfLOyZnw8YS4ZA2Av0C+fpW2TXTXbv3WdzaEvrKdttZoh3cY269Wqh+CzYpkq2PaA5sRDnkEZZHD2m40V8IOHbOzW1MTopPJdrkD4E6HrGah8nBXRH8+cdjwfrgrKEHP+9BR3J4+pF9bOiF/8tLRcE9EM+Nq79ImDT4taEIQdJ4L6E2xGqflblVU5yGVvK0WWcFezB/IyHtqKn/cQhBLKKgjijbFGwNYwWa0aAd/r51zbT2DTVNuPgjltoHtDgOwFCEDf/8Awuzeahpx2RtHqWrtwdmHWhgPa2/rWEINm7h7MH/t9N/hM9oXTHulQN8mhpR2QRf6UIQdcGxKZhBZTwtIzBbFGCDzWIC7wEIQCEIQCEIQYLR0LUxN80eAQhAhJs2F2sTD+iFzP3epTrTx+CwhADd2l/o8fgtxsGl/o8X0GrCEHO3dKgGlDS/4EX+lKs3aohpR0w/uYv8AShCBZmxKYaU0A7Io/clmUEQ0ijHYxo9iEIFRC3zW+AW4CEIMoQhAIQhAIQhALCEIMWRZCEGyTliDtQD2gFCECDtmQnWGM9rGe5Iv2FSnWmgPbFH7kIQIu3XojrR05/uYv9K2Zu5SN8mmgHZFGPU1CEHZDQxsILWNBGlmgepdKEIP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhMVFhUXFxcYFxgXFxcVFxcYFRcXFxcXFxcYHSggGBolHRUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDQ0OFQ0NFSsZFRkvKysrNysrKzctLSstKysrKzgtKy0rLSsrNy0rKzcrLSsvLSsrLSstKysrKysrLSsrK//AABEIAQMAwgMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAACAwABBAUGB//EAD4QAAIBAgMECAMGBAUFAAAAAAABAgMRBCExEkFRYQUTcYGRodHwBrHBIjJSYuHxBxQjkhVCgrLCJDNDU6L/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EABwRAQEAAwEBAQEAAAAAAAAAAAABAhExAzISE//aAAwDAQACEQMRAD8A9bWit6yNODirCptSXYgsMtDxPQ1R7A1Ry3FReZKs2+wKKjRSWdjLNRlLcTrHovdzPNtPtAOrs8NPPQ0UVloZKjtqaIzyz4FGbEJ3Exs28gcbV4Zi6UrK68wOhSdsrIz4q3AKnUuZsdWWizIFUs3a1vUbOKjlkLwjbytkHN3dgG4dLWxHXSe4zv7O8VHN+IGly2ndj6ais7K9rGOVTZ9RKxHMDftpv9AoyRzdviV1zuQdt1UlkKjU7Fc5vWNiKmMd7AdevZLK2Ylp7Nkc+niW3mN69vK4Uxx5/IoS4shNq9DUgtkRTqNXQ+Umo5WYiMLWdjUZaqD49o7E1opXMtOXkXj5WiuPvwAzrEJ5+QMJ310M03lwKqVGrJdrA2YmorhVan2dNTHCsk1tZ9voLxGI23npoUBVvoi41LRyWYqdTchmHV3mBdWTsjNOBprNPTIVt56fqQa8JC0b7xFS9xjqWWRir1mBUJ3uMdRJamaMctddSbHEB7qIXKrFLJAopRuwqdZu15BOVio734AwTZBKtRvJFQhcZNW5hwhlnoAtRChTstRjiHLduChVMgl1OXmWQep2cjLVXFpI1yhlqYsdF2saZFTaaVnfQdXV13GTD0VkjZJ5W3gcmcPC/eLqN5DMQ3tWKcLsBVVgLWxplTaM6QAVd4dBkdi6Gb5lDJrIzOWY7ENmZRu8kA+KbQqrFK5oktmOpkaICoq/YDOSvyDhpcQ4X8QJJsuKG7FuPMuNFvMKCEB6prS5XVNBUaOd2AupSsxjgt5b1yVwWrPMAou2VvEVXmr2G7r8RSpb2yBewyDtkhF29QnlwOfj7trlw3nRlOLOPWqfbNMjjBqz5mqbsu4TGbTHwltZbgOdVvd2XeFCKNVfCvjkI6q2QCpGVyWZrqQyEwou5RmlFt2NVGnZZakqUWtRNaMrPZ7AF1al34koRuxcImiM0giV1xESqrwKqVLp+7CJRtldBTlO60G0KfDeTDUrq7NcIeCAlGjbm35DNmImo+DFKLu73sQaoxTeRfUqW+28TCTSZHWAZdJC5ilVLU+OYA1KnKwMY5X1ClmwpZIips+7EFKr2kA69OTaV/fcDVhmaaMFa4rEK7CE1E7WG4ERWlojZgo2RQ+aeS72KnFcV7QFeTTZkqYlrSzYDcRNLITSmIlK7zHUEigK0s8zNWqblpxG4iavmY77rdhUU09RM6z8zTV07DO53Y0mwt3WYVOCbJsX7B2HobLu/MK2xklk9C5Vb6GadRagqV95FOjPMtXv2AuysEqqWhAqvN7jPt7h9R3EvIir2mw6VtN5lcmzbh8P4gHGmXKOYU42WpUIcWADLBlJFgdejeVsy5zSefMHDuy0BqJuXcBmnK8slfyzOjQWSZjUdWaJyajZFQmvK7E1IK+Q1RdxbdrsC3RF7L5i8bjqdKKlUmlfRat9iR53G/Fbt/Tp2TbtKV87WvZLLet+9G8cLlxm5SdduuJur5ZnkcT07Wes7LkkjHPpGpvqT/ua+R1nlXO+ke3qtsbSpxseS6awVbD9Vt1W5VIbeypS2oaXUs9b3X+lmCn0nUWk5347cvlexf5VP6R9EUEgJs8PR+IsRH/Pfk0n+p08B8Uq9q0Lfmju7Yv6eBi+eUbmcd6cSk7mmnOMrONmmk01nk94101pocnRzsyQg7o2SwvD9SOhwIEuJJUr6hwp2zuMhDmRSVRSehoTsDOImrUejAupiAY12LUBiW4BnXrgQSyAd6lK67H6FOaz4h0IZdoSoJsDPS38xlLPN34fsPdFB0YK9ioRKhdCamGdrG6rPg7GeriUsrZlHy3pyu5YirtO7U5R7FFtJLkYZTdrXeWnLsJ8UytiqzWX25PxdzmrGSXB9p7cOR5cuuhGLd7Wy4tL56gptNNarPwMX+JLfDwlb6FPpSH4Jf3L0Nsurj8dUrzUqktqVlG7yyu9X2t+IjEUHB2la+uTT80cqp0ut0H4/oZqvS8tySA7ClbO4nFY1LWV34s4FbHVJay8BMXd3MXJqR9i+Bqm1hYvftTXddv6npaUTwvwJi7YfZv/AJn9D2VGrnvZ48u16Jxq6rhctUra7yoVeNwlWvqZaFsx03ipYXuKdazdkSNa+TYC1R7wHQ4mna3ASnYis3VCpUjZrqim94Vj6tkG7bIB31BIJKzvxEKpFb0H/MR/Esgh0qi0FVa8Y9tvMxV8as7GHr+JUbKuJbMfWNst1MgE0rso+dfF8GsTU5tPxin9TgtnrPiqN6zvvjH5W+h56phVudvM9eHI82fXPqCJHQng3us/FGaeFnwXidWGKYpo2PDS4LxA/lHva+ZKRikXSTbyNv8AKx33YyCtksjnk3HpvhiezBL830R77o6smj5t0TOy7/Q9j0LitEebLtd5x6Zsrb3CrtrIKNKRlo/cBKyz4Fxi94dkRQwdkSb4jH2lbJAtZlSiN0sVAilf6WQ0dZzIAueZNn7LZJTW4qKKhE+CChDLQOlSu7mtxio2KMapWzMU1dvgdOcb78jP1aUuQR4v4sp2rLnCL85L6HCZ6b45X9WDW+Hyk/U8xc9nnyPPn0MhE2PkZ5nZyImxMhsxbRmrCmCg5IA51uOt0XLJ9p6DoyraSPO9E6Pu+p3sIrWPLn16MePY4XGJR5j4Y5vkcXBPQ3ZGVdDrGwtviYlXyyLhWZFb3LgVOZnUh0LcQB2mPg8gVBBvS18iKU2QLYXu5AGKC8g6dPMXQlwNEsiokEtBdV6truGIVNX5AKFSi7mq4OzmVHjvjhZ0nykvBr1PLHr/AI6s+qa/P/xPJHr8vmPP6dLmjPM0SEzR2c2aYpjpoUyUhcgBkgGc66R1OhV97u+p3qZwOhHnLsXzO9SZ5c+u+HHXwh0qTyOXhJHQpMy00xa7Bm0ksszNJFpkD+ssTrdxnuGpEU7rmt5ca/O4hhKmA54nmQVZFgdHDaj5MTh8g5zu9SiK7vmHTocWMw8ESUvAIqUdyMeMrWNE6pzKrb1Kjz/xZnGDeeb80jzEj1XxRD+nF/m+j9Dykl79++w9fl8uHp0ExMxs6mTe7t4X3vLdx8BM5Ln8+PDsOzkTITJDm+3wfL1Eyl7uvpnuM1QSFsZPf74+nAB+pitRv6FlaT7Pqd6nI870X97uO9h2eb069GHHZwp2KCRx8CzrUWc2mpRQbprgDRQVWQCqkEKcUOSuVsoig20WpEdMCSAfcozkA7VPQZQaWepn/la1kurlbuLjQrf+uXl6mtMtUal7i6texnp0Kt86UvL1F16FZv8A7cvD9RoVWxAuhBv6EWBqtq9OVjZDDTX/AI5FHF+LqFsPF7+sX+2Z4Wp6fP3+57z4qo1OpblBqKlHW3NI8LU+p6fH5cPTrNPz776S4ZrXiu7QVPnby4vi3x96Dp6e+Hhv3J94qd+fnxXNe+Oh2c2dta/Z7tlfhfL2l3Lkt2uvPTa7eHD0TZab9OPJcJ+/MXNcfeb4rnxJQMnr7tr3fIXLf3/P3+oz38vXj4ge/MxWo0YB2l3HZo1LO5wIStmkzRDFS/DL+1nm9Ou+HHsMHUyOrRq5HmOj8S7aPwZ2aOIfB+DMaadiFZDr7zmRq33eTNFOpxGhsVbkS9xEqyWoP83HiiaVp1JGkIWMXEVLHpb14jRtt6shzv8AE0QaV9JVNEcBlkRxNsFOFydWM2SrcxoBKnwB6oNguRRwPjmH/R1OTg//ALivqfJap9g+L47WErJaqKfhKLb8Ez5BX9ffvI9Hlxx9Os796/l735LlvES7r8rfk4Jvz9Voks+/6x4/XMQ9P34R7F77Tq5s807b/Pg+MffzFrP9uPK3H3vbUXL5fm/N7+S5fXffjHjdECv0/wCOv6rwBbeXcvm/qG93d9PeVwPfkYrR+D+8u/6ne6Po7TODg19pePl+p7foHA5Js8/p13w46GBwumR28PhAsJhrJZHTo0jCpRoJbjRCki6ce4bGAUt048CdVHgM2CmiKX1K4LwKdCO+K8BjbBRAh4aH4SDrlAdR9oDqNM1dWLlE2ySpg7Q50wdhaFAbZHPiX1WYDpsBWJpxkmmrppprimrNHxzpzo6VCrKnLd91/ii9Hy58z7LK5wPiPohYmnaStKOcXvX7nTDL81jLHcfJJr33+WnfyFTjvfpu4y9Do9JdHVKUnGSfJ+Pqc+XvRfi7XwPRLLxw1omevfxXF8vfm09nl2R3xNVV9iz4ytrzXvs0yTkuOf6LerMUBL358OzdmBJ25+0SdVe+/wBTo9EdEVK0lZOzOeWUjeMtO+Hej5VJpJavPkuB9R6N6NskrCfh3oKFCKus3yPRLLRHnt3du0BRw1t3eaVSBc2W5MyonTLS5i3JsFSvvIpiJe28TnvZTQU5yI6hn2WUrkDnJEMzg+ZCK9GnzC2kZnWXaD1iOm2Gl2AaQnaB6wuxoTVrlZCYy5kbYDZRQqULg3egDvudgjH0j0RCompxTPJdJfAUJZwlbl+57hye4F34F2afK6/8P6t/vvwiVQ/h1N/eqS7rL5I+pNN7swdl8h+qn5jxfR38P6FN3ln5vxZ6bB9F06S+zDyzNtnfkVbiS1dI4pBXTFSfAHPUyrRFottbhSi2EqLCrVTIBTRP5e6ydh3UIgU5FZjlR5FuC3IKTYCUbaD5IW4kA5e7kLsyEG6CT9A9gVFlTbNIOcODBUeLFvaK+0UN2eZL233FKK52LUS7QaqFKoRAXALa3FObBvwLi5cAKknxJ1beoSUg4wARKk77+4io8jVGk+PcTYIpEcOTqkaVT3A7FnbkAqMAlHiG0A7kF2KAeXEjlmFWBOPMrauUpMgiQtyfcGpFbXiQBtECSRArTOTKjNkIaZVKbuSM3buKIUE5A1JtJtEIBE7lKTt4fMsgBRDjIhCoiqO4e0QgEjN3I5shAqTmypTfvtIQAJzfkBKbuQhkSrIzuTIQIu+hE8yiEaU5aiqktSEADrHxIQhB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAPEA8PDxAPDw8QDw8PDw4NEBAODxAPFhEWFhURFRYYHSggGBolHRUVITEiJiorLi8uFx8zODMtNygtLisBCgoKBQUFDgUFDisZExkrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIAKgBLQMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAAAQIFBwMEBgj/xAA+EAACAQMBBQUFBQYFBQAAAAAAAQIDBBEhBhIxQVEFBxNhgRQiUnGRMkKCsdEjJERikuEzc6KjsjRDU2Sh/8QAFAEBAAAAAAAAAAAAAAAAAAAAAP/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/AN4gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAee2m20sezU1cVk6uMq2o/tK8unur7KfWWF5gehMDtLthY9mr95rRVTGY29P8AaV5LliC4LzeF5mn9qO9m9ut6na/uNF6Zg9+5kvOpwh+FZXxGvZ1HJylJuUpPelKTcpSlzbb1b82BsraDvhvKzcbKnCzp6pTmo17h9Hr7kfliXzPG3e0/aFZ71S/vW/5bmtSj/TBqK+hhckpgZahtBfQacL6+TX/t3DXqnLDPT9i96nalu14tSF5TzrC4hGE8dI1IJNfOSkeGiXA+kdjdurTtRONNulcRjvTtarW/urRzg1pOOq1WqyspZPUZPkyyuqlCpTrUZOnWpTU6c1xjJfmuKa5ptcGfUPYXaXtVrbXKW77RQo1t34d+Clj0yBksknGmTkC4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeX2o29sOzt6FWr4twv4W3xUq5/m1xD8TXlkD1B5vajbiw7NzGvV36yWVbUMVK700ys4hnrJpGn9p+9C/vN6FKXsVB5W5byfjSWv2q2jX4VH5s8LKXF8222+bb4t+YHvdqO9S+u96Fu/YaD0xRlm4ktftVfu8vspNdWeCnPLbbbbbcm3ltvi2+bKuRUA2QSkTgCMFkiVEtgAi2SrOKddLhr58gOxk+m9k6Xh9n2EPhsrVf7MT5coSbep9VdhLFpaLpa26/2ogZBMumUiXSA5QAAAAAAAAAAAAAAAAAAAAAAAADyG1HeLYWG9T3/AGm4WngW2JuMulSf2YceDefJgevPKbUd4Nh2fvQnU8e4Wns1tic0+k3ndh8m89EzT+0/eP2hfZgp+yUH/wBm1lKMmuk6ukpem6nzR43KWi0XkB7XajvL7Qvt6EJ+x0Hp4VtJqpJfz1tJP8O6uqZ4rRcPn6lXIqBLkQTglICuCUiyiWUQKqJZRJeEcM7hcvqwOV6HDUuEuGv5HBObfEqBac2+LKkEgdi24n1b2T/gUF0oUl/oR83bEbN1e0biNOEZKlFrx6q4Qhzin8bXBevA+m7ajuxSWiSSS6JcgOaCORIiKLASAAAAAAAAAAAAAAAAAAAB4jafvOsLLep05e2V1leHbyXhxl0nV+ytVhpbzXQD2543afvJsLHepxn7VcLTwbZqSi+k6n2Y/LV+Rp/afb2/7Q3o1KvgUH/DW2acGuk5fan6vHkjy2caID1u0/eF2hf5i6ns1B/w9q3DK6Tqfan/APE+h5HRLCwkuCWhaVROKW77yeN5NJOOW8OONZZa1zwWMc0ubapSk4VYSpzWMwmnGSysrKeq0YHG5FScF5Jck0sLi09efIDjwSkXUS2AKKJZRJbS46HBUufh+rA53hcTgncr7v1Z1pzb4sqBec2+JTIAAk7HZ9hWuJqnQpzqzf3aaz9enqbO2W7n6lTdqX89yOj8Ck9flKf6Aay7P7PrXE1ToU51Zv7sFnHzfBeps7ZXugnPdqX89yPHwKT1flKf6G2exNnrazgqdvShTS+Favzb5mWUAMd2N2NQtKcaVCnGnCPCMVj1+Zk4olRLARgkAAAAAAAAAAAAAAAAiUkk22kkstvRJdWeC2n71LK13oW377WWV+yli3i/5quqf4VL0A963jV6JcWzwu0/elY2m9ToP22usrdoSSoxev26uq4rHuqTXNI1FtNtnfdo5VxW3aL/AIahmnQx0ks5n+JvywedcgPS7T7b3/aO9GtV8Og8r2a3zTpOOuk9c1NPibWnBHmWyHIqBLkVZOC9OTi04tprg1o0BRHJGp7rjuweWnvtZmsck+S/MhRLKIFFEsolm0uOh1ql18K9WB2G0uOh16l18P1Z1pzb1bKsCZzb46kEEoADs2FjVuJqnQpzqzf3aay/Xp6mzdlu5+pU3al/Pcjx8Ck/e+Up8vQDWVhYVbiap0Kc6s392mt5+vT1Nm7Ldz9Spu1L+e5Hj4FJ+8/KU+Xp9TbXYmzttZwULelCml8K1fm3zMvGAGI7E2etrOCp29KFOK+Favzb5mXjAuolgKqJYAAAAAAAAAAAAAAAApWqxhFznKMIxTcpTajGK6tvgjXm03e1aUM07KPttXh4ie5bRemu/wAZ8c+6sP4kBsSpNRTlJqMUsuUmkkurfI8BtN3r2dtmFovbaq03oS3baL86n3vwprzRqPaLaq97Qf71XcoZyqFP9nbx+UFx4cZZfmYRyAz20m1972i2rms/Cbyrel+zoL8P3vnJswDkVcioEuRUnBKQEYJSLKJZRAool1ESaWrePmdard/CvVgdltLV6HWqXXKP1Z1pzb1byUbAvObereSIRb4Ewa4vV6YXJ9Q5v5LovX9QImsY1zom8cn0IOxY2NW4mqdCnOrN/dpxcn69PU2bst3QVKm7Uv5+HHj4FJ+8/KUuXoBrKxsatxNU6FOdWb+7TWX69PU2bst3QVKm7Uv57kdH4FJ+98pS5ehtvsPZy2s4KFvShTS6LV+bfFmXjADEdh7OW1nBQt6UKaXwrVvq3xZmIwLpAAkSAAAAAAAAAAAAAAAADz+221dHsq2dxVW/OT8OhQT3ZVarTeM/diksuXJLg3hMM5cV4UoSqVJxp04JynOpJQhGPVt6JGuNpu962o71Owh7XUWnjSzTtovqn9qp6YT+I1DtLtTd9p1PEuqrlFSzToQzGhS6bsOv8zzLzMUmBnNodp7ztCWbutKpHOY0Y+5Qg+W7TWmV1eX5mJcziyALORUnBKQFcFkiyiWSAqollESklq3j5nVq3nw/VgdqUktW8HWq3nwr1Z1JTbeW8kMCZzb1byQAAIwdixsqteap0ac6s3whTi5P16epszZbugq1N2pfz8OPHwKT95+UpcvT6gazsbKrXmqdCnOrUfCFOLk/XovmbN2W7oKtTdqX8/Djx8Ck8yflKXL0+ptvsLZu1soKFvRhTXNpat9W+LMxGAGH7C2btbKChb0oU1z3Vq31b4szEYF1EsBVIsAAAAAAAAAAAAAAAAAABGTjnMC0pmg+/m8lPtG3pN+5Ssoziuk6lWpvv1VOH0N4Vq2DRvfPBTvYS5q3ppP8dTQDXkGcqOFJricsWByJEpERZyICFEtgiU0uLwdarefD9WB2pTS1bwdWrefD9WdWUm+OpUC0pt6t5KgACTnsbKrXmqdGnOrUfCFNOT/t82bL2W7oKtXdqX0/Cjx8Gk8zflKXL0+oGtLGyq15qnRpzq1HwhTTk/XovNmzNle6CrV3al/Pw48fApPM35Sly9Pqbb7C2atbKChb0oU1zaWrfVvi2ZmMAMN2Fs3a2UFC3owprm0tW+rfFmZjAuolgKqJYAAAAAAAAAAAAAAAAAAAAAAA45M69aRzSZ1qoHRuJmmu9p/vUf8AIp/8pm5a8TTPex/1S/yIf8pga8lUa4cOj1X0CrrnH+l/rkpVONgdr2mPSX9S/QpK7fLT8zrsgDkcm9W8kEIkCAc9nZ1a81To051aj4Qpxcn/AGNl7Ld0Faru1L6fhQ4+DSeZvylLl6fUDWllZ1K81To051aj4Qpref8Ab5s2Xsr3Q1qu7Uvp+FDR+BSeZvylLl6fU252Dsza2UFC3owprm0vek+rfFszUYAYbsHZm1soKFvRhTXNpe9J9W+LZmYwLqJYCqRYAAAAAAAAAAAAAAAAAAAAAAAAAAAAOuyjRdlQOCpSya97ztlKl1SVags1qSfuf+SnxcV5p6r5vqbJKygmB8iXEHGTjJOMk2pRkmpJ9GnwZws+mNpNg7K+zKpTUamP8SHuz+q4ng+0O5h5boXLxyVSKf5AaiZBs+Pczdt63FJLruS/UznZHcrSTTua9Sp1hTSpxfrxA07ZWdWvNU6NOdWo+EKacn/Y2Xst3Q1qu7Uvp+FDj4NJ5m/KUuXp9TbvYWzNrZQ3LejCmubSW8/NvizMxgBhewdmbWygoW9GEFzaWZN9W+LM1GBdRLYAqolgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOJxK7oADdG6ABO4SqYAFlAndAAlIkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTEhIWFRUWFRcXFxUXGBUVFRcXFhUYFxcYGBcYHSggGBolGxUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKBwcGDg8HGisZExkrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIALYBFQMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGAQj/xABOEAACAQIBCAQJCAcGBAcAAAABAgADEQQFBhIhMUFRcSIyYYEHE3KRkqGxwdEjM0JSYoKywhQkorO00vAVJTRDU3NEVGOTNUVVlKPD4f/EABQBAQAAAAAAAAAAAAAAAAAAAAD/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwCcYiICIiAiIgIlLOBtIHMwHHEQKonmkJ7eAiIgIiICIiAiIgIiICIiAiIgIiICJ5eCw4iB7E8VgdhvPYCIiAiIgIiICIiAiIgWsTiFpqXc2VRcmQbnD4RsZi3bxDNhsNchAvRr1Bs03fanJbdpNpLWPtiLqeobrbiDqJ7xfu75CGeyCnjK6KLKpAA4AIsDSlGqEvUJY7yxLE95mM9twmS9ToATDaBUGnvj23MfOZZJnl4GQuJfczD7xlxcZUGvxj+kfjMRGnjtAzWym/8AqP6TfGY75Xq7q1T02+MxHaWHMDYDLlf/AF6v/cf4y2+XsRuxFbuq1PjNeTLZMDa4fO7G0iGTGYgHcBVqMPRYlT3ib3E+ETLFYD9aNMAAWRKak2+kTo3LHfaw4ATjcIt6g5EzfIh0GYbFF/NAyhnPlb/nan7H8srGcuV/+eqfs/yzCp1QwBBveZXi9Hbq5wLgzkyv/wCoVh94fCe/25lY7co1vT+AmOUvsMuJRPEQK2yhlU7MpYj/ALzj3xTfKrH/AMTxP/uaw9jSsUj/AEZUqkGBcXC5UP8A5rW78VW/mlf9j5QPWyq/fiax/NKNEwBfYdkC42bWM2HKh78RV+Mv4TMHGVwy08prUqWJFLx9TSYDhczEd9V941nunuHxpRkqU2IYEEEaiCIHG/pOMybiGCVatCqrHS0WIud+kNjd95MHg18LlStUWhj7HS1LXA0dFhuqAarHcwt28ZG/hRyh+kYlapADMi6Vt5ta87kZkUMLg8LiKRbxlZUZ7noi9E1NQtxECdgYnCeDbOHTX9FqNdlF6RO0oNqcxu7OU7uAiIgIiICIiAmvyziNFQo2vq7ht+HfNhNBltvlh2IPWTAYbdzEhTP8fr+J8pfXTSTTQbZzEhjwgj+8MTzT90kDnD1RMd5kHZMVoHgEoJlYlD7YCeNBMpgUNLLS84lowLbCUGXDKIHmF+dXkZImbmMwv6JiadamPGpRqPTNz0yFJtbZpA+eRzR+dXv906XCYVmVmG5TbtIGyBh5FoFSgbe6m24axJByjkum9MsmpgLlfon4TgcnVw5RhxGrhrEkFHvTqa9qwODrMhJ0G0W+qxsD5LbPPaYj5RZDYggjcdRmNlYEMec1b12Oq9xwOsDlfZ3QN8ucA4GUVM4ewDmfhNIMOSCbdUXI126yr7WE2eIyFRpvQDYkOKtEu5VbeKbX0Dc9IgAG/baBXWy/UIspA7RfZ3zY5CcsHueHvnNPS0TtuLkBtmkASAfVN7kF9T2+z74Eq5MyTk+vk+vWAda9Gg7OumesEJDKNhUkd2yR5gaJA6R1kjVw/wD2ZNDTAJViNRBsSLjeDbaJjEwNJnx88o4KPZJzy0P7tyf5FP8AhWkB53VCawv9UeyT1nGbZOyd5FP+FMDisn4xqNVKqdZG0h3buR2d8nrAYta1NKq9V1DDvF7c58/KNcmfwfuTgKN93jB3Co1oHRREQEREBERATQZfW1VTxS3mJ/mm/mlzlXoo3BiPOL/lgYVFtY5j2yIPCH/j8RzT90klii+scx7ZE3hG/wAfX+5+6SBzJPRmMwl4Hoy0TA8tKX2z288eBSTKCZUZbMAxlppWZbIgUmUNKjKWgWk+cXvndZsZxijSrUnUHSpVPFtYXVypsL8CfXOEv005n2TaUDcwL2TKGhYb7i87tmKhvZOHSqukOlr4ax5uMkGvl7A0RpOhxDEXCA6K3+0eECP8Zk6rXd/FqWC62bYiDi7noqO0kTDTJgU6rVDx1imOROtvMJts484sViyAdGnRU3TD0lCUU7bDrN9o6+FprP0Wqw6TN54Hj1XTVpIw3oEGg2oghiekwseOrURrAmnepot1SRssSdnYd2wTdUcm1HNrWHEzKqZusdjA84GlyiQCiqxZAAVY6tTa7W3WNxbjebPIZ0dLu988xOb9QJsvo6wBt7QJTklDZuy3vgStk2lk+vk3EP4sriaNB2IDvcsFOiyre1i1ri2q/KR5hKTBem12O0arDs5zJw1xsJlxk7IHIZ1i1YeSJPOdR/u3J3kJ/DSBs6j8t3CTvnOw/s7Jo+xT/hxA4tV1ya8yqOhgaA4qW9Ni3vkLAyeckUdChST6tNB5lAgZcREBERAREQE1eci3oE/VKn12982kw8rppUKo+wxHMC49YgcnSqaxzHtkXeEY/r1blT/dJJEoVtkjfwhNfG1fJp/u1gc1foywzS6erMdoHt5VeWxPQYHrGUMZ6xluAJlBM9MpMCky20uEy28Cw/WXypuKNVURnYAhVvY7Cx2A9mzzmaZj0l8qdRkLIi4paqM4S6WBJsFcXKs32NgPABz9GBx1fGO7aTMSfVyA3CdFk7FeMpg7xqPPjOexmCqUnNOohVwbEH3W28xN7kLCsEN9VzpG+oAAbTAzxVtLgBIvom3G0tVKhVlC3ux4dK1jr+zc217du/VMk4U9apUWmO2zMeekbQLQ091+6/ulxar/AF29I/GXqeHw524qx4lKZHqIMzamSHVS6utVBtZbsAPtA9JOZ6PbA1y4qoPpt55jYjHKod2JCqbdGwao+8A7rbz2GZoam2tWBttt/Wuczlugwpo1jYPUDeUW2nnotAu0c5yr38UujwDOG9K9vVOpwuPSsgdNh3HaOw9sjadFmy5Cvwv67C/ugYmc7XrnkJOOcjfqGTf9tP4cSC84vnb8RJwzgN8n5M/26f8ADCBzuEpadRV+swXzm0+gAJB+bNHSxlAf9ZD3K2kfZJxgIiICIiAiIgJ463BB3i09iBFtJiDY7QbeY2nAZ9m+Lq+Sn7tZ3+VV0MTWXhVY9xOkPUZHmepviqnkp+BYHPg9GY5l4nozHZoHsNPFP9f1ynl4AmeXnspMDxpSRPTKTApYygmGlBMCzV2r5U2+Ddwehe5FtW8bfdNNW2jyhOqzddQSDqY7CeG8CBr/ABulbpE8NYIt2apnVG0RYC5BAt9aodYB+yo9YO8CanJhs7E/NqWYclu1uWoTb4TosWbX4lL86j9Inv6JgZFGiUJVTeptqVDr0b7hxbs2Ce6CqbgXbex1se8+wWl1BooB9I62PFm1k+6WdG/KBQ9Ynt8/svKcLjXosHpMUYcNQ80prOgbQ2twFtXMnf55s8VmpiBQ/SEUsgF2G8DiBvHKBkItHE0nenTFOsLvUpqNTaulVpAa76rsm8AlbG4NvItWld0rKro4s6NrR9QsQRYg2C6wRsUgix0uewWNak61ENipBvNhj2Aq3TUlRfGIOFz015Bjq7GHCBhZTzdw4c+K8aFv1SVcDsD6K3HdL+FwwRQqiwmwo0h9LfLDpb4wOWzl+dHKTNlR75NyYf8ApUv4WQvnGPle6S/XfSydk4cKVL+GMDNzApaWPpfZ02PoMB6yJMUi7wX0b4t2+rSbzl1+BkowEREBERAREQERECNM8aejjHP1gjfshfapkaZ4f4mp5K/gElrwgUbV6T/WS3otf88ijO4fLv5K/hEDmm6sx5eJ1THMD2eGJSYFV5STF55eAMpMqnjQLTSgyp5ReBj1js5ib1aRWmap1KCBffrNr8hNDW94nSYnF3wzJvsFA4gkeuBapLqIG8W7rgnZ2AzJWoDSdhseqg1i2oWtccgJgUqDCgy3udE/G0y8KC9GuBrKinVXkAL+u/mgZ1er0u+3nJ+Eoo4jok9/faZGIwhNmXYw0h98AjzXPmm1zczbauSttm7s2f1zgcXktz4zSOvXeStUz80cGKIWxAtecBj8kPgMS1GspU7UY7HQ7GB38DwNxKsRXUiBqcVUBdiNQbpW4G9jMrxl6NLilUqPvqR7QPNNbWqAsbbBq9d/jM3DG1JSRceOT13t7RA6/IuV6aUalOrSRro5p1CoLBipsCeezhOewVAqOkxJ7SdUyqGsDhYdmqXXQHZA47OUfK90lTDNpYLADhST9wRIszmHyg5ST8j68JgvIUf/ABNA7zwWUeliG/21/GT7pIE4/wAGlK1Cq3Grb0UX+YzsICIiAiIgIiICIiByfhAo3Si/ByvpC/5ZDGd/z7+Sv4RJ2zzpaWGJ+q6H16P5pA2d7fL1PJX8Agcw2yWpcGyW2gBPDPIYQKTPJ7PDASkmVEShjApMttLhlt4GNV94nRYZNKwva9tc52vOlw1I6OluAvAuZUqrRanrGgwKtx3dL1mUZHqeIqgsLop0HHGlUPRPLpW5k8JcfCCo6M2sKNQ4ntm2o4RajAWBaxXR/wBRTtS29tdwN92Xa4IDqs0clJU0sG5Gmg8ZQY7KlBjdSPJJKnhfsnSYPDnDOGXouu4jzgjhOCwNZqHi6dSoyBW08LiwNI0mYdR/rIRqK/SAuBe6juHzkSsgTFAUK9ujUBvQqjilTYR2EgjZeBheEDLFDE0wtSmLjXosL6LW1lGGseqQ/jadiQuocz7TO0zlpuCdRI3EXIPf8Jx+IpknZ59UDXhdwm0dLLRpjbc1TyUWTzsVlNDDKgNSqbKPX2ATKycjO7VHFibEj6oHUp89eke3RgbLDkoVZQLrsuLg7rEcIyvU8fWVwNBQgBUaulck7Oe2MfVFJQxNwSANHXtvu7p4puAePHbA5POlflAeySLkCp+q4TyV/dPI/wA5l6Y5TtM3qn6vheX/ANVSBNmYFO2DU/Weof2yv5Z0c1GaNPRwdAcaYb0+l75t4CIiAiIgIiICIiBr8v0tLD1R9gn0el7p8654N+sVOSfgWfROcGKFPD1GYEgqQbbrgi8+dc81IxNQdid/QWBza7JQ0rTZKSIFMpJlRM8JgU2gxL2DF3Ty1/EIFpKLN1UZuSsfZLdp2T1qARdJXWqGQl3ayghrnrvquOAnHBdQ5CBSRLTCXrSkrAwqwnVPiCtE6tiatXETnWp31DWeA1mddUw2jYbrCx3EbiIGLklXVBp6zw4DhL2UMWVamEXSLX32sJcTVKtAXvbXsv2QM3GYqpXAUuoFxpBgdBzpXbTttLcdWuzXBu0w/wBNq0OhTN0P+TVtY+Qxujj+tIz0GG1i247Ru80DGrZWT6VB08gEr+yxExGx9/m6JH2qnRUdus6+VxM+rk4EBukFJKjRa2tdEkWGzrCUJk6mDfRueLa/bAxf0CoWBdgx19I61S31V2aW3dYcW3bSlooAoGr2k6ySd5JnglGU9KpoBTo2JLEcoFypSBsTsBvbdfjGmJ5s7Zi4yoQyLTG0EsTuF9WzkYGpziF2HKdJkJ/kaHYD+Fh75z2W19k3OQ2+Rp9l/YYH0rkUAYeiBs8VTt6AmZNdm5VD4Wgym4NGnrHkC82MBERAREQEREBERAt4iirqUYXVhYiQZ4Tc1KuHYVAC1ELohwCdFQSVVuFrkA8LDdJ3njqCLEAg7QdYgfH+zUZ4Wn0zlPwe5OrklsKik7Sl0/DqmJhvBdkxD8xpeUzMPWYHzeWEuUcLUfqU3byVZvYJ9TYPNPBUuphaQ+6JtKWFReqijkAIHyzhs08dU6mErH7uj+K02+F8GGU3/wCHC+W4HsvPpWIEAYTwKYw9apRp9xb2Wm5wvgOP+ZjD9xB+a8maIEY4XwKYIderWf7wX8M3GE8FeTE/4fT8ti3tnbRA1WT828JQ+aw1NOSiavLWYmFxBLAGkx1nQtok8dEiw7rTqYgRliPBV9SsverD8xmsxHgvxA6pQ/fPsK++TBECDMR4P8Yuykx5aB/NNZiM18UnWo1PQf2gWn0NED5prYCop6S27CQD5jrlo02H0T5p9L1KCttUHmAZgYjN/Cv1sPSPboC8D5zNTjeBUHGT3iMxsC/+SV8lnHqvNVivBfhG6r1F9A+1bwIXLygmSpivBGp+bxAHlIb+pvdNRi/BNiR1KlNvvFfUVgRjlJQ2qbnN7JrYl6WEo63J6RGxF3k8rzrcB4JMW7fKvTpr9YEux5ahaSVmbmZh8nKfFAs7dao3WPZ2CBuckZPXD0adFOrTUKO4TMiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8PEBUQDxIWFg8PFRAVFQ8WEBUQFRcQFRUWFxYXFRUYHiggGBolHRUXITEhJSkrOi46GR81ODMtNygtLisBCgoKDg0OGhAQGzclHyAvNzcwLS43LTc1Li0vMi0tNystLy43LS0tLSs3LS0yLS0tKys1LSstLSstNy8tMC01Lf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAAAQIDBQQGBwj/xABEEAABBAECAwUFBQUFBgcAAAABAAIDEQQSIQUxQQYTIlFhBzJxgZEUI0JSoWKxwdHwFTNUctIIF0OCk5UWJDVTY7Px/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAEDAgT/xAAoEQEAAgIBAgUEAwEAAAAAAAAAAQIRIQMxQRJRcYHwYZGhwSIyQhP/2gAMAwEAAhEDEQA/APhqEIQCEwiigSE6KKKBIQnSBIQhAIQnSBITooooEhOikgEIQgEIQgEIQgEIQgEIQgEIQgEIQgEITpB7z2Hf+uY3+XJ/+iRfb/bFxbIwuFPnxZDHM2SEB7aunOojdfC/Yvkxxcax3yvaxgGRb3uDGi4JALJ25r7R7VXwcS4a/GxcrGMrpInAOy4mCmus7lyD4b/vN45/jpPoz/Svf+xz2k8Qyc9uDmyd8zIbJoeWND2SMYZPeaBbS1rhRveqre/Cf7t8z/EYX/cIP5r3Psn7GRcPzBnZ2biB0LXiKJmXG863tLHOeboANJAAu76VuGl/tA9k8YYreIxMazIZIxkrmgN7xjwQC4Dm4EDfyJ8hX0fsTG1/CcJrgC04WGC0gEEdwzmCvlPt07eYmVA3h+FI2a5GySzMIfGA0HSxrxs4kkGxyr12+kdiePYTOGYTX5UDXtxMQOaZ4wQ4QsBBBOxQfIPaj7P4Qx/FOEAOww54yMdg/uJGOLXua3owEG2/h5jwnw+Q9n/YvI4xk91H4YI6M2RVhjD0Hm80aH8AVrcI7d5HCeJZb4alxZ8jI7zHLvA8d46nNcLp1fio2PNdHH/aZrw3YHC8NuDjTF7pSyTW9+v3gCANIPI89gAKGyD792KweHQ4rRw1rPs4MjO9aN5HxvMb3OfVvOpp8XI9NqX569pvFJ8PtFk5GNIY5o3M0yCrGrHY08/QkfNfW/Y1xnEi4LjMlyIWPacm2PmYxwvIlItpNjYr5D7QsT7f2gyI8eSIiVzNMrpmMi8OOwn7wnT+Ej47INYZ/bQ71m7/APwD/Sj7d218s3/oD/SswdjuLf4/H/7tH/qT/wDB/Fv8fj/92Z/qQfSPZRk9pH5jhxQTfZO6dffRtZ97bdGg0CT73p59FR/tIRYv2THeQ37YZqYdg8wBju89S0O7v4EjzXH7KOG5eBmOmzuI4/2cxOb3f9osm1PJaWnTqoVR39a6lT/2ge0OBPiQ40E0cuSJxJ929smiMRvB1ObYFlzdutX0QfDcbFklOmJjnuAvS1pea86HTcLq/sPM/wANN/0JP5L2Psr7R5OC3Ljgx2zNyWRteTlsw3soSAFj3c/edy5UDt13uzPAYMh7252Tl4cTIy5s7uO4kzS8EeEsEYPIk3+z6hB8rxuGZEo1RQyPb+ZsTnix6gKUvCMpgt+PK0WBZheBZNAWR1JAX2vPzcebs/hQYkplfC6MPjg4hDw+UaWSBzn941xrUQdNX4gV41sEkcsD3tyGRsycQvfLxrGy4w3vmc4mMaTvW97c0HiRwTM/w03/AEJP5Kr+zMjX3fcyd5Wru+6dq03V6aur6r7f7QOJ8LyeMww5GXkRwywRt+1YudG2Fkhkk0iRmh1ertW1tsAWV6OLtEz+3WNklxxiQ4WQ2HKGUx5kL5cfUJHE7OGgeH4mzewfm2DhmRJfdwyO0ktOmJzqcOYNDY+ilLwfKY0ufjyta0WXGF4AHmSRsvusvEsebgcsEMwdOMzLLoYc+HDmIObK8ESPBFaS08jYXz3MiyImd6yPI1ROY/77jeNlRHS8Eh8LWNLwQKoEc/kg8c3guWRYx5iD1ELz/Bc+VhTQ0JY3sLuQexzLHpY3X1rtVxbL4lM2abFmicxjY9GPx7FhjIDnHUWuY7xeLnfQLzXtW4Nh4j8cYubJkmRjzIyTJZlOiILaGtgAo2dv2b6oPBoQhAIQhBJCE0F+FhSTlzYm6ixkkrhYFRxtL3u3PRoJpbjewnEi90fcsEjC0FhysZrrdK6FtAyWbkaWCuteYWdwDin2SYyGMSMfHNE+IuLNUcrHMcA4btNO5r08vtFe+QTHGZ32qJz3CV2l3d5n2toDa8PiLm8zs70Qeaz+zuXjxumliqKOSON0gex41yRiVlFrjqBYQ4OFjcb7hdT+x3EGx947Hpnd95ZkiB0aHSVp1Xr0Nc7RWqmk1QWvle0TIdE9kcTI3yEPMwOpwm0QRlzQ4UGlkJbp6a9uQSf28cWOAxYg+SJjXShzw4zNx5cYSHoQIpngMPU3fRBxS9guKsJa7Got73bvof8AhOY14Hj3NyMAA53tarb2H4kXOb9nAdGYw7VPBGAZAwt3c8A/3sd1yLwDRNLe4r7T8nI1fctYX96NTJXAhkkmO9zQa22g03+2T0VXEfaJJkby4kJeJWyteHOGl4lDyQPMtYxl+jj1oBhx9j892stiaWwvfG9wyINLXMAL7drrS0OGp9029yEY/ZHiEmvRASYpZIXgyRtImjLQ9tFwJAL2AuGwLm77hdnD+1MUZkMmI2Qz5X2l/wB+5rXUS6OJ7dJ1Ma5xdR2JqwaFXcN7augdq+ztfIMnIyGSvkcZGGfuzIA4DdxMTPFXV3nsGa3sfxB3LHJ8Zj2fGfvBj/adPvc+68X6c9lI9jeICrg0tLpWanTQsYHRfaO8t7nhoDfsk9kn8H7Tb9A/2lzkGseMP8bhLrc5wyHQPg72yNyGv5eiR9pE5IBgAY2bKmAZM6Nwdkfbtel4FtoZ2x6d0PPYPL43ZrLkmdjsiBmZHFKW97EB3cvdd2Q4u0uLu+iAAJJLwKtdEXYziDmhwxzpdpIJkib4XQiYO3ds3QQdR2B8PvbLTxu2QjyftTMUd53GNE4Gd5Dn4z8d8Uh26HFjtvXfddcftFlEbY3Y0biyNsTX6yCGtgbDfLYmnHb81dEGHN2K4gyrgabeGAtyMeQd4YnTBtseRfdtLvhXmLq4b2Sz8mNksEBdFLq0P7yNoOmVkR95wI8cjBv53yBI9Hje0aRmxxYy0kOcO8cHF4iih1B1beCKq/a9N6uC+0CTDgbjR47DFHIHtBldYAndNput+bW3+yCgyIuw3E31pxidTQ9tSwm2FmsEDXuNP7iOYIXPkdk86PRrgozSRxMaJI3F0shcIxpa4kBxY8AnYljhexXo4/aPMxlR47GPbAYGSiQ6ms7tzWnluQ+SST4vpVcV9oMuQ+GT7NE2TGyYchhDnOH3Uk0gjqtml07ro/hb5IMiHsPxKQ0zG1WQBplhcHWxsgcwh/jYWubTxYOoC7NJM7C8TdVY/vBpH38Aprw4sc63+FrtDgCaBLSBuKWtie0N8Efd4+LHG1oexhbI+2Ruja3meb9bGvL+pvbfbql9qUrnanYkR1Otw7x/KuTP/btwaTXMMYKsWQ8lP2by42PfJGGNibC52uaKM1M17owGucC5xEbzoAJ8JsLIpez4n26ORBLE6DTJkx47JJWZD2AmASBpLK3ae9NtvoPJeNQJKlJJAkJpIEhNJAIQhBJNCaATQEwgApAIATAQACdJgKQCBUnSkAmAgjSdKQCkGoK6T0qzSnpQVaUaVbpT0oKdKqkPRdEhoLlKCNJKSSCKSkkgihNJAkk0igEk0kAhCEE0wkFIIGEwkFIIGFIBIKQQMBSAQApgIEApgIAUwECDVINUgFINQQDVINVgapBqCrQk4ULXRoXFlSWaHJBzyOsqsqaiUESkVIqJQIqJUiooEUkykgSSaSASQhAIQhBYmEkwgkFIKIUggkFMKAUwgkFYAoBWNQSAU2hJoVjQgbQphqGhWDbc8ggA1WBiwczJMjv2RyCjHkSM5OI9On0KDYzZdIocys0qo5JcbdufNSEgKBpFS+H81EoIlRKkVEoEVEplRKAKimVEoBJCEAhCEAhCEFiYUQpBBIKQUQpBBMKYVYUwgsarGqtqsagsarWqpqtagtaFx8TyaGhvM8/gujInDG316D1WMA57q5ucUF2Bj63Wfdb+p8lqTRtPvch6fuBVf903S3p1r9TahBkytFh21HYjVsfitNxGMOJzKMeHEb1h3xaQKPTY3siXhLbAjlG/R7dH1IsKTnu2sVfQenoroZgdtQ3JsFp2AG3z+CTWJTbLnxJIzRAvmC1wdt5gg+igJXDn+ov9+62GTuOwY0i9n6aIIG4D/h0U48dj23VAc7o2QTVbctx16rmK5XxebHa9h5gj4Gv0N/vCmMcO914+Dmlv6t1D6kLS/sa9gBdc7LT8wdlyZ3DTDub3rmOvUAg9FZpaHUWiXOeHzVbWFw82ESgfEsJpchWviwmgTz5g9R8CtKEPfXeO1Cw0B8bcglx6NMm4HnRFWPNcK8oSkvWZHCID7zADRd9zMWkN52WP1gkeQcFicV4YIdBY8uZK1zgXMEbhpcWkOaHOHMbEE/UEAM5CEIBCEIBCEIJphJNBIKQUApBBMKwKsKQQWtVjVU0qxpQXNVoKoBXNlZNjS35n08kFeXPrdf4RyW52cmZjFzpIy5zxzFO0s5kUa+ZvosWKFzdL9ruw1wsaehPx6fD4X3/2i29EkZYdrMRs3sQNLr61tfTouqzics75mMLsrJZJIXhobZ8LaoAbVQG3z+KBIT1sfVJroZBTJGgbmnAsdqPXyPLkD+9N2ML1bsYAd7s1R015knqNhZ5LSM9XMYWbO94G9twenlR6clS50GtxIeGH3aLXEf5tt1JkTwCeYBAHOyavbazy3+I8wq2jSQ6j5tJG5o8x053v6FS060q1sLSPu3gjaxRB33+nr8FoMaBsBTWdNgS7lZF8+e6qxI9tXNz738h1PL5fTyXbBTSCR4Wb6TyJ6D+vmFpWIrGXMybLjdTm0TpOxBNHzbyHwKxcqT7RLq/4bNmj08/nS7eJ5DjY/HLz9GHavny+ChjwUK/q1ne8zppWuNiGAuIA5n+t/ILTZE3SfC4tjaCXgkEMkJAJaRpOrfbfYgE7IxZxjDvzE2XQC4xP90xjYg7Hn/DqClw/OGU10jomsaJHnumOf3dEuLWsYXaW1qI2ANC91i7KSIE1btLmhznu8RbELeb33AHjq+QaBVUvNcUmMspdoc2MDSxgOrSxt6B+4u8yXHqvQ8ayNDO7B+8lp8hB3DCQ5jduRcaf8BHXMrzz3V8vQEfQ7FXAyHc0lZke8VWgFJjC40BZPRWYuM+V2lg+J6AeZK38XBbEKG7jzd/XRBj/ANmS+n1TW5SEHl0wkmgkEwohMIJhTBVYKZdSC4FDpgPj5KuFrpDQIFAkkkjYfBazeDxig0l8nIjYxh3XW4e6B5E36IMuNkkpocrqydLb8iT1Xpf/AAxLhvjdNCJtY1tY14kDwBZFRkubW25Butlm5OFIzau8IHut2DW7USPwjcGtru1HhuXkY0olZI6OVooNYQ0hpN04cqsDajdbrPkjk/xMek9/ft9pWIpMTFs78vn7hq8Yy8fIlDo8ZuPTSD3Z1Evvd0gOzSK8hz3o0sqHB0gua4Oeb5mnBp25eZ8z6/Faru02lsv2qCKeecl3evDu+a+qDtYPhobAbEbK90eDK2LupJY5pHDvPtIZ3TWgHxgs8QJNUTa5/wC1o/vX3jcdPnY4+CtaxWk6jz6/nr93nM3HcCI+7Oo76i2r25AnoOZP8BZshxS0gRSEEbl1+CxuTX5R5+l+i9K7geSx5jg/8yYmhxdATltLHE0NwDr8PL415LMdG15dG+M248mEt8TebS0tBJBG4qhQvTzWnHy1tuklq2r1hwY+fISQY2yhoJDt2OAsb1ddRtXVdUefjvI7wvaRp+7e3wADkNTbIb05DrurYsJrWBsb/E5wBBaQ4v8AK/SztXU89yqsrDne8Rd3TACQ5zm6aunSPcCQ0dPlQs3e3jnvtzOJ06+4Bt4c17nB1dy+/EetN90C+VD8IoXtYGAAvedgAedEm6Davn/JczsGAvAg1AjS0PBOp7+WrSeVk7AV06on7xztDpe8a0+/d71vR3sDcA3vz6pN/KHNaa3KELS5xe7mf629ByW5h8HlkaDHpcSC7QHgENBAs3sOaz4o1sYmIwgGOYCTwjS64/EQLpx2ABJ3J/DfUBZu0JIJoSWyR1tpIfH6DayN9q/RQaWRsL3NAjjF6B4dTifCywOp29ACehWsMvKazQ9xLJWmrGolu7TRIv8AMPqvMdoMu39y0+CInUR+Kbk4+ob7o/5iNnIMjMyHPc57jb3kkn1Pp0HouMm+e36q553rzVbmqjOyR4iunhnDHznbZg5vr9B5lafDuBGZwkk2i2odX/DyHr9PNei7trAGtADRyA5KDhgxWRN0sFDz6k+ZKrkC6pFzPQU0mmhB5JNJNA01C0ILAeg6/wBbBdEeL+fn+Ubn5np/XJETm8mnT6nY/X+AVjZHg01tcrcdj9en6oLdDQKdQHRoG/LmTzv4qyFzx4g4sBsg3vbhVgj8RpRi03t73MvdyFdfgP6pWDn4PG/bxdL87Hy/TnYVR2QcRcxt0GNLiXPAtxAAog8nOsOsuBq1042RG5gjYAD4SZJAXkufQJsC3O2Ium1Sy+63uQ278oJ2F7HUOX9b9FOUNbvJzF1G0VR58xyO/UeW3VBos4PA4j7NfS53eKMaasg+6Xn0O3p05snAma5zYW949gt7huGk8hTti769drCpi7wC9fdscKaWmiA46qjLee4H1Py0IeJSxsGwji1W4sAadIoDQQN3bOskEi+nQOHh5mx5C5ssjcjk4Nkewg+TiDbj6cvitCXtM6PHdjPZDJqLrc6JpexxNk970d8LI8xVKcnFYxAIYIhpDQ573DW1oc7QSTW5oVyFdNwjC4WyOFs7NJLm+GVzXN8dkeAOsWK3dW1HkSsr047THijbfjryTWZidQ68xmFJHGWRywvkAa+OV8cgLDyLbbcYvcuodaYek+KYYxg1zZ4XRe8x0chcxlUB3rXN1OeRy5k0aGyx8h7Yj94S+Y190LDtRP4zZ0/Dcn0u1dw7s9mcQ1OjAcYrHdjSA3qWtGrn1NWdtzaV4prMRW04+u8+/XTDk5qVibXxH4+ZEMeVnueMZoDGipMh1R7EHYkXpB3FDUTe5rYW8K4BNDO2PLicWy+GMsksFx/ENJvbbY1z3BWTDgzMf908CZpLajm0SA3RA5HntQv1W7w/tVlxOAnGp8YADpGESBtkgHVt1O5be/Nap6MOPibmEteN2kg+fzWricVidsTS15e1HCsiLTl4J7xjSGlpa4muTRMNL28+VUN15A4zdRc5uhpJLYdRc4NJsBzjvVVvzPpdqYV6rLzmww95Gbe+2x1tTq8T/wDlBFHoXN50V5UCgB5ADyUMzMrc7mqDRsA0dB5CyfqfVV8OL5SQN3E8ugH8AirHD68gOZs9AtrhvBgPHOLPSPmB/m8z6f0Ojh+CyHxHeT83l6N/n/8Ai6nSIJyPXLI5N71Q96CMhXNIVY9yoe5Ak1XaEHlkJJoEmhJBK1bFM5vun5cx9DsqE7QdZnDhpcCB+zuPiWk7n5rsxtNVE4C+e51H4giz8AFkgqQIQbEeW++7jYQRuXGmu35udew+Z+Zul1QMYHAMGqT85sAf6jz2/dzOTDlvaKu289LvEP5j5LoOUHt07ssb14muP7R97T6b9FUaT6YdvvJdupGmz0I53/RdyNjcI/3mU4tFbMFB1c20Rs0c93DyoKPDmtiYXQHW+rdJYptizpiJsHpqcL22AUzOIzrn8Um5ay6IvqQb0X+Y2T0Fcqi2QGRhGlseONyKLBZrmaNH1PiPIAck8ETTu7jBadmkGUktIYDsbJ8A35+8elGwuRrJJ36XVqFubACIwNuZs+H524/QrdMvDosa2tmj4lDQ0lrdBf13G4bv+YHldnnlycngxqZzPbt6/RpWkzE7crez78fV3rHaBt3zB3ov8QJafB8Bd9b5LiyuIymmxgsrw20aHEdB4ar5AczzW7wrtTOdi1zyzfcd6APMnZw+J1LRl4tw2cXkx6Tz71rS4Bxut2AOadurV6JrXw5id+TzTNpvNbV/jjr+sPKYXBwLdOQ3QR92bN9aJb1PLTYJtW5+W15oRDWQR3Z8RafMu/Ca/DZqt3CiCuJZge8mFzxCy2tmlNyBp3dXqTv5+ZAtZkkwA0sFN/U/5v5cv3rNsQa2PceJ/wCbo3/L5n1+nQqmR/Unz6/X5qLnK7GishzuQ3A8z0PwRXZwrH0jW8eJ/Q9G9FoRaGXpaG3zpoF/GlxiVPvVB3GVQdIuTvVEyIOl0iqc9UmRQL0E3OVTnKLnqtzkE9SFVqSQefQhCBoSTQFIpCaCKdppUgYcrWzHqFTSSDuhlF2DRHyPyXXA8tN8yb362eoPR3qse1bHO5vI/I7hB7iftO6bEGI6KEBukNkMQD2gflc3r60OZWXjYbnk25rfJznbOPkHDa/iseLPH4hXqN1oYkur+7duegNH5hccfFTjz4Yxmc+7q97X3aWmXMaAWtMb2mi9khOuuekfHrdKjIl6v6nUI73JP4nn+P0ocqpJ6Ox1Sfm5geWnzPr9PNVbN8Tjbufzv9StHCOQ9zhZNDkAPDQ8hXIfvXM56J5726eSqDkVfGOp+ivEi5A9SD1B1iRS7xcYepa0HV3iO8XLrRrQdBeol6o1pa0FpeoFyrLlEuQW6kKnUmgyUIQgEIQgaEkIGmkhBJKkIQGlRU0IIgrowHeP1o18f6tU6UMJaQfJBtNeGt9duvkuafIv4/uVEuR0H1/kqbQXakw5VWmCguDlIOVGpPUgv1J6lRqT1ILtaNap1I1ILtSWpVakakFhckXKvUlqQWakKu0IONCEIBCEIBCEIBNJCBoSTQNCSEErRaSEErTtRRaCdotRtFoJ2nahaLQWWi1C0WgstFqu07QTtFqFotBK0WoWi0ErQo2hBShCEAhCEAhCEAhCEAhCEDCEIQCEIQNCEIGhCEDQhCBoQhAICaECQmhAkIQgEIQg/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhITExIWFRUVFhUVFhcWFxcVFRUWFRUWFhcVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFxAQGisfHR0tLS0tLS0tLS0rKy0rLS0tKy0tLS0tKy0tLS0tLSstKystLS0tKy0tLS0tLS0tLS03Lf/AABEIAMcA/QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAADAAECBAYFB//EAE4QAAEDAQQFBgkJBQYFBQAAAAEAAhEDBBIhMQVBUWGREyJScYGhBgcUMlOSscHRQlRigpOi0tPwFXKjwuEXIzNDRIMWNLKzwyRjlNTx/8QAGgEAAwEBAQEAAAAAAAAAAAAAAAECAwUEBv/EACURAAICAgICAgMBAQEAAAAAAAABAhEDEiFREzEEQSJSYUIjBf/aAAwDAQACEQMRAD8A9BNodtf3pjXd9PvR9vDYEpz/AF+vesdUaWwHLHY/9dqRcei7u+KOP1GH/wCpXv11b0aoLKpcei7u+KiSege74qyTv1e0pO4CfanSCyoZ6B4t6tqjjlcP3firRTE7EuAKuPQPFvxUcegfu/FWz1/r9a1Ed/ZxRSAq49A93xUfqHu+KtA+/WNiYkbcrpzGrPPrRQWVT+6e7ZO1MT9E93XtRzqx3Ztwxlpx4Y96gSNvZLZno55jMa88glQ7B/VPd8U0/R7x8VMxtGs4FkHEYjHLHGMWnJQMR5wjCTepiBqOcC9BAORjUUUFjF24/rtTF30SpF0fK2D/AC/OMQMTMgas8R5yjyg6QzIGNMzdnLnY5dmuEtQsje3FRe/cVMVBnOEA508icTN/LflsLski4ZTrAxu5nIkB047MzsaEahZUPUVJs70cOHGehJN0y3zsxGMYAcVMHfvBjCAMXDnZCYHEp6C2GZXI3q1Z7Sqj4g4agdeAODRmUxbid2GvNRLEWpnaZUlOHLjUrQ5uRV6jbWnPA93FZOLRSaLYKlKECnlSUEDlJpQgURpSKJgqtXtBnBStFWAqM70rGkGFSrh/djtIRmh5zhZep4yLNkLPW4Ux/wCRIeMWhP8Ay1X+H+Ne/XI/8nj2j2aZxq6g3td8AozW2N7HH4LNnxiUvm1TjT+KD/aPRGJs1U/WZ8U9Mn6i2j2agmrsHrH4KLnVeiOJ+Cy/9pdH5rU9Zn4lA+Mqj81qes38SNcn6hcezUuqVeiPW/oompW6I4/0WWd4x6PzeoO1vxSZ4yKOXk9TtLPilrPodx7NRylXojj7MMtyialXojj/AEWa/tHofNn8WfiUT4yKA/09T+H73I1n0Fx7NNfq9H7yjylXo/e/X9FnKPjHso86jX7G0nDtms1THjGsfobR9lR/+xu7+BpPoNo9nfLqnROzzz7du9J1SpjzT67gdeRGRxOIxM4rPjxg2fEiz1e0MB7qp9pQavjIs4EeTVescnP/AHEaT6HtHs0t+p0T65wyyjIYYgQDjMyUr79js5892yIzy3ZFZan4ybP82rHr5P3PUv7SrP8ANav3PzEtcnQbQ7NOS/DzsJONR0GZwInFuPmnAYYYJudhi8xtqPdP70nnEaictULMHxk2b5tV4s/Gou8ZFnP+mqjqubI11Clrk6HtDs1ABwEuwn5b9evPF30s0i0xF5wER5z+qZnPPnZ71lm+Maz/ADeqevk/xorfD6i7AWap23I7qiHHJ0O49mhcc4cSTniRt1zhmU7TOJkTB84xhEYDVgMNyzzPDCmP9K77o/8AKo1vDqkI/wDTVR1cmfa9Jb9A6NG449oMydWCs+T0rs8sJzu3Tn15LKt8YNnAxs9c9dOhPdXCifGTZsjZ6/ZSoe+uhqfQrj2d1zzOA9ycP6u5Z0eMKyThStXVydGI2f8AMSp1fGRZ9VnrmekygMteFY4703Gf6hcezR0rS4ZH3jgrtHSAODhG8ZLFDxmUsALNV1+iGf18t3cpHxk0yINmf/DHscoeGb/yUskV9m+bVaflDiiPfAXntLwwY/EUCOtwHxUn+G4aINN3VeB9qh/Hn0WskTYVKklMs9oHwppWmpyQa5roJEwQ6M4IK0CwnFxdM3TTVo8cqYHDLVOz3qbbQo1bQSy6W5GQdY3dSryu6ccu1LTIhVHuUbyZyABOeg1KpRXsVerTKkpBWVNpRAQdaqhp2JwDsSGXaWtQeE9AQDJSkJ0FgHNUQwqxeCIwtjUk2BWaCECsCuiGN1OCkaTd3EKbKqzjFxSvFdR1Fqg6zNGMhVsLRnODii0pJhWmUiREyJkDeRmkymQZCLBROjSsIujagvoPZlkp0beW5hXKNuY7csnZqqZGyWoHA5qxWpghBtFnYRIOKFRqmIOpJKxvgq16JGSGyz3l0CEK7BWhmyo7R6duha7ouMkEXpJa0RLm5uIGbHDdhOaNabTA3qrY9KVmRdeQG3rohpul7g5xEjAy1pnVjESnyTwQboquTTAb54BabzYIcJab0wAYMScYMSpO0bVaC591rQ2+SX0xzbwaflZy5ojPnBE/ada8HX8QLokNgNxgREfKdGy8YwwSfbqhABdIAAAhsQ1weJEQec0Ek5xjKPyDgtVqVSk0zTIDZvYiARcBBIOB/vGYfS7VyKloLiiWvSNV8h1RzgRBk5wWkXtbjzGYmTzc8UKkzBNLsLNR4uKU2suOAZTee10NA7zwXqIK888A7PDK1TpOawfUBJ/6wthStDgIniuR8ud5Gjp/Hx/81/Tykpi6Ffs1kLyQIEAuJcQ0ADMknAZjiFWtNMRgF10/o5eoAuUeUVix0gXAPMD2K9pnycNDaYF4fK1L0KKoho47ggvadq62j9GuqgXC0mQLsm9znNYHRERee0Z6xgkdGukCWYs5QOl10tkiW828cQfk6jqBK80pRTas1UHVnGMjWU187SrFopoLKRJA3oEdB2DR1BAc5FrlV1qZk6doe0y17mnaCQeIVynpi0gyLRVkZEVX9xlc4hKFLVjTLL7W9xlznOJ6RJJ7SiMcDsVJsogcocWaKSL7QEO00wGk7kBrwlaX4QoSZVojZ8HAbge4Lo06TSMRiubQ84dXuXTpOgJyCIxsQKG7R6tisiCqlbG0ihyMIJJBXRqvCpOC0jFsiUkiIJUgVEtRWsgLVYzN5ChWxxVahr60apUwMKg2oe9QMvOZGKbUpF2CFUfggCvEu7VduKpZM5VzPLM5daTHRu/Bulcs9P6UvP1iSO6OC7DagVWlSuNawZNaG+qAPcpL56c7m2d6EKikZjSTGwLlK6dfOc4mes/qVWr2SKYJwOv+i0dmsRqDAtaBrO3YFS0lo03TL282ZkmRBA1DeOK+g/GKOJTkZq6NSelUdTcHNMOGRGYwhdI6P5odfYJbeAk3iMcPNicDr1JrTo+6PPYSIJAvS0EgSZblzm+sFpHNCqbH45fQ9LSnNh94vv8AKEgtDahBaYqCJMXTEH5SJ5fSD2OFIwwZXmlxdee4GS3IcpGXyWlA8jIcA11N7iSwtF4wTLcZaMjvzhQt1HG8OTIM40gQ2SS4iHAGRI3QRsXmyLHKX4/ZqnJLk5+kILiWyASYBxIBOAJACBQbjKsV6eCBTWkTzyGrOQinecVErUzEkmhPCAECVO8oBSlDAI0qUBBvRicl1tNaFq2U0xVuf3l+7ccXRcuXg7AQf7xveofsoosbD8NgRy9AB556h701Q4q0hWHDlNsqqCptcrom2WSVBQL1KkVSJYVjNqeu+Gk7ikCgaQdFNyG+BHGdWIQqVaMCFEuTLA2LvLygV36tqFeUGvxlAFyg2AupoOiKloot1Xw4/U5/8q5QK0ngPQmrUf0GR21D8Gu4rDPPXHJ/w2wR2yRX9NmVFIlMSvnzuA7FU50TdbqkBzZG0EHVPFStlna0vuyWuYWmATjdz6rwBXAsGmxfDaoF0Zblc0x4TMHNpYnXsC+ncUz55TaOfWtfMFN7hTIkY0r7rhIcIdBLYcXnA60CpbA9gZfiWBjnBgvcwua0OdF4sLLkgHNo2EHn2y18o4OMzAB3wgeUQsHhVmyzM7FSveIeal1wuvuik0G+AJJqiC6XSZP9RK12lhY4NJ5zw+7EBmDxAM87zhqHmrimvKnRyxlCxJCeVsO/EFVG60fihcmcVrFGUmVnBRlHdTUOTVkEApKYpBOKSpAWbDoutWDjSpPeG4G4xzwDsJaDipWvQ9em0vfQqsaIlzqb2tEkASSIGJA7QqxZuHaAfamLBrA4Aa5zhFMLGZQcfNY50ZwCYmc46ipaSr2p101zWN0kM5W+YJi8G38jgJ7Eez2p9Obj3MkibpLZiQMR+8R2lBtlpe8Q+o98anOJA1CATnBSaBMrNqklp3e9WA6cVWcYAU6ZVoQeE5SaoubvTERL0SzvQXNRrHTQgZbD8FS0tU/u42lXeTVHSFOSBsRJ8Cj7OIApq06yqLrMVialcuTUm61N9E7ErhCBk2lbnwIoxQc/pvPBnNHffWFp0yZ3CT1DFet6A0e2nZaDC3EUw47bz5qOx63lc/8A9CdY0u2e34UbnfRAqJKuVLD0T2HFVnWd4+TPUuOmdU89exxMwoli7Aoxk6get2HsUalJ2o2Xu94X2fyMOOCThKz5iEm/ao5Apb+9PyY2jiFfdZnk+dZux0ewIlyr0rLwaf5F4+TQhRs9mwJrOBwkFjcJbjBD8gcNRInAYSK+3aOIVkMq9Kx+oPbcTcjW6Vi9WP5EqY7QKhUpE8+pdbtADz1ReCa3GiI5Orf2y0MgzkOcZw6upENkq9OycXe5qbyerH+JY+0OPfcQHBQLxtHEI1lFF3+JWLMQBdYHyMZnntjVtz3KyKVUf5th7Wk+2mmp0arQBy1hwjNk5Ya6SbYuAVWnZwBdr3jsuXQMpxvdfBCaW4c5uOXOHxV4MreksH2Q91HFWKdlrEh3LaOBAIHMAzgyRyeeAx6006E0ANKyj/Vbf8saojKoc8eqAqVodSwu1AZnAgCMBGMmcZG6F1bTRr5Gto8j6LHE8RSxQDQrZcrYvsjsj0We9NNipFaztsxAv1i064DHY3jkS8YRG3E5GFCsbGLwNWqdl0U8RdbnziBzi/sDTByV4MtAAHL2PAR/gjqz5GSh1atoGdpso/2hHDkUPYao4cA5ZSYxExqmFJuCvWixCq6/VtNnJuhoutezAEnJlIDWcc0I6Hp/OKfGp+WqTYMEKg2hOag2jipnQ7PT0uNX8pR/ZDPS0+NT8tOxUQLhtHFWrI9oGLhxCENEU/TU/wCL+Ui09A0yP8el28v+Uls+g1QfyhnTbxCpVqrS4mRxR3eD7PT0R21/yVA6Dp/OKPZy/wCSlKVjUaAm7tHFKR0hxCJ+xafp6f8AG/KTfsan6an/ABfylBQB0bRxCa4NysDRNP0rP4n5aPQsNJub2n7T8CAIaO0O+s4Naxzmkta8tBIaHGCSRlhJ7F609uwQNW4bFm/AitSvOo04lwNQwHRDLrZJcPpZb1r22Q7QuL8+UpT1+kdT4ajGG3ZRIUSEerTIMFDheE91nlxaowu3ZxUrh7KdmpExJc2GFskAEOe8NGMYZ4wqukHOBdTfRZTdIdg0tdiDljBaZGWwQvprPnTnAKbQiWdwa4EtDo1OEg9YXXsTata8adlovujnGGsDfPdheqNkwTlJ5o7XYHGTK1b65JLHUmU3NOIa0tcM8HYmRiO5VadSCDAMajketFgOGkzAJjOBKJV0fWy5KoDsLHDadY+ieCvWM1agJZZqBAluNxpJGMNa+oC446gcxvXPt9qcZBaGFstLW3mwRmC0kwdXUBsStgyvS0daHAFtGo4HKGOPsy7UItIElrgMpLSBOOAJwOR4KqLWQQZJgggEkjDaNmY7Su7ZWV6gFRllsxByBFJhfDjlTfUDnGQRliNuC0tk1ZzqasKmbReJMBpmCA26AW4EXdRwx3yp8uVqvRmy2ApBVGV0TllZJYBVPSp5o61I1lS0tV5g60S9Dj7BMKM0rn06xVhlQrNFl1qdAYSj2WnUqEiky+R5zibtNn7zzhwQ3QqLFOkjtujWOIXW0JoCkXt8prvdiLzaTbrQCek7HgEXSGirHTtDqQs96HETUrVXHCdTXNClzoepna9SThkoALvV9G2P5uWnaytVafvFwVWpoRpxo1iDqZXEgndWbl9YAb1F2Wjl3Uey2GpUm5Tc+Im6JiZidmRVeoXU38nVYab84dkRtY4YOG8KzZ7ZcyZTdJB57A/LVOcblLZRL9mVcTyZwBJywABJJEyMAT1Ko5it+XG7duUgIAkUxfERiHnGcM96CSCkmxmq8X9numtV1kNpjqJvu/6W8FsfKHbVxvAqwxZWu9I97++5w5k9q7hsp2rhfKltlkdb46UcaQmWicHBTNl2FDdZSlyDl5zU8lZaYwKVptAdcgnmtLcd7r0Aahie0lCZo+u57qYpPL2m65kc4OxN26cZ5rsNx2JU9H1CKhIa0Ug1z772sutcWhrjeOLZc3EdIL6O0cOhcqiMtWohU3tLSQYkEgwQ4YGMHDAjeMCokqhFy1WgOcHCcGMZiZ82cdwghoGxo3oDaiDKV5AFpteMDiPiZ7cShWmpec53SjMyTDGtknabs9qEX4JgUAc2oYKt07YCRenAASPogARORgKpbBzih0jitEQdF75c92V573xsvOLonXn3IjXKswo7FqiWGalKZpwTSqIJgqjpl/NA3q4CuXpY5Ik+Corkq0nK9RK5tMq9QkkNbiTg0bScGjiQs7oujo2eiHy55IpNddcW4Oe+L3JMJyMESdUjau7o62vqkUmsaym3zWMEMpxhedPnkjAlxk6sgFy7VZnmoyhTBLWEUqewkuh1Q7LzpcTs6l131GU4pUjLW5u9I7W/4bFk5WXqdqxtbg084jDW0R7Su86ygG+5lMuOMlrXO7XESs1ouSZjt1cVobdpGm2i13KMMOLDEuAIAMS2ZMGY3KHFspSSYO10KZxNKmepoaeLYXJtFGmPNlu4mR2HPii2jTlMENJE4bdeWpRqsvjmkHcFMFJFT1ZyNNVaJYKT2lwGIIwqUz06ZODdUg4EYHaM0wlrnUyQS3EOGT2nJ4nUV0tP0cAcbzTHWN/VhHWd0cio7Cm7WHcn9V4LmjqBY8/WK0bshKi0SUuVhSLVb0NYuVtFCmcQ+oxp/dvAu+6CpbpWUlbo9e0XZOSs9Cn0KTGnrDRePGUYqxUOPX70CoF883bs60VSSGlKUyeUDPF36SJr07Rdh7DRcYJ5z6IYA8zkTcExgTJ1olg0pyNZ9Smy617arCxr3NhlURDXt5wumHA5gtC1DtHUT8hvAITtD0egF2910cnVmSt1pFR5eG3S7F0uLy5xMucXHWSScABuVYlbP9i0D8nvTHQVDo96ryIWjMXKUrVjRFnMEMqEESDDoIORGCY6Do9GrwT8iDQyxKYLUO0HR2VeCg7QVPZV4D4p7oWjMbbswghq2FbwcY70nqj4oX/DDdRqeq34q1lQvGzP0EZpXdp+DIHynDrA9ysjwWETyoHXPsAVrNEnxyM5eUA5aSp4Lx/nA7g1xPsQf+Ho+U49TR73KvPDsXikcYKppCmCyVpRoLe/1W/jUbVoC8IF8fVaf51Es0WyliaRhmhdTQLwK9EnIVaJ4VWT3SulU8E3zAfiQTzm3RhEiQTtQRoOrTdIIkY9oyjUcYUvLFr2UoM6ljtBh+MEU6nXN0j3ngq1kqcnde5ocJwacjEGCB8nUguDjVa1uHKENH+4bhb2Ekdit6QsRFR4YJYHENxkwDv7UotIHZfs+lnVXYmHDBrRgxzYjkwNR2Hs2Ipjk7Q3OW06rf8AbeWGNhDazydzDsWfdScNRHYuto62hxAfg4hzSScHCo0scTvhxnbnnJNk0AslO9VGsNE/BaGgw55RiTkBvJXJsF2k28+bzsQwYvI1YahvOHWh2urXrYRcZqaD3uOZO/hCeyXsWrZb0va6VaaYk1Bk4fK3Ebco1rJucSA3bUY71A8fzru0rFch2sY8ELSNgu2m0XRzW1ajW68A8rNzTZerSKoqQtT4urJftjXaqTKj+0t5If8AcJ7Fln2d8+aeC9F8VtiIZaap1llMT9EF7uN9vqrD5E6xs1wxuaNpVCA5WChPbsXFOkBKYqTwmQUY5MkUy65zBFKUkxQAOzGBd6BLeweZ9ws4ot5CLDJLSMYkETiNeBG4fVCaH7WcHfiQAaUpQDf2s9V34khf2s9V340AGlMSgkP2s9V340xv9JvqH8aQB7yUoDb2twPU2PeUTt9iBkpTSoGdvcow7pDh/VAw9JwkTlOOeXYi1eTu8049u/URuHFUSHdIer/VRDXdIer/AFSoZOt59PeXN4sJ/lULVRB1YpBhkEumDIEAYwRPAnipygEZ+1We69r2iSx7akb2ODpG/mgRr3RKsaRrNZUeMYm83DAtfzmmT9Et/QV21UVzbVZm1Q1ryWluDXAXoaTJaRrEkkbCTtKuMuaYpR44K37QkwxpcTkBj7FZq0nMYX1S29qY2IBOV92s5YDtnJdCkylQF2iJJwLzi53VsHUuLpKveeGjG7nvK9aikjzNtj1i8YtccYMdYzQG2+p0u4Ky98MY46iWHqwcPafVQ/J7+Q7UpUvY1b9E7FaXPe0FxLZBcBElozGWsYdq61R5c5zjm4lxjKXEk+1U7LZwwQM9Z2qzBXiySt8Hqxxpckl6J4H2e5ZWHW8ufxN0fdaOK86BXrNioClTpM6LGNPWGgE8ZXlzvijaC5Hc1QIlHqN1oN1eQ2QNzUJwVh4QyxAzB+Ut2P7aNYe1igbYza71KnvatsKR2JwwjUV0fIc+jD+WM2n1X/BI22ntPqu+C3JDt6jDt6fkHRhjb6e0+o/4JjbWbT6j/gtyS7eoEO3o8gUYfy6ntd6j/wAKXlrNrvs6vuatqQZiTMZa42wo3Hb0vIFMxotTTlfPVSq/gUXWpvRq9lCufYxbItOxMjyBRjPLG9Ct2We0flqXlY9HX/8Aj1/y1sQ1PdR5AMb5V/7df7Ct+BLyg+ir/YVfwrX3Uo3JeQdGQNR3oq32NT8KYVHehrfY1PgteW4jDWpORuHJjzUd6Gt9k/4IRqVPQ1fs3D3LaRuT3TsKfkEzEl1U/wCTU9QqpVstV2IpVPUK9ADTsPBOGnYUeT+AeceRWkZUn+qVAaJrzPIOnqK9K5N2wpuTdsKayMR59T0fXyNF0TPmq9ZdE1XmLhGE84ED2LYOeRqKanWMzdPBJzb9lLj0Zr/h2t9Hv+CkPB6sejxPwWuNfcn5Xco2KtnE0V4JVBUY+oW3GuDiBJvXTN3EDAkAHdK3N+ZMceKrWO0yBuVhtYbl5ZybfJ6Ehg47FFwOxF5cKDqzVA+SF05qF0qfKhR5bcgoscmM/cnbTH6CSS1MBGkEjQ6kkkhiFEJhSGwJJIGJ1nbOXWde4KMs6KSSQyvanDUAq+GxJJQ2zVJEmjcEhGwJJKbY6Q94bBmpBw2BJJFsKQuafkhMYjJJJOibB1WKDgkkt8RjmHBGcKMjo96SS2POIvGxVq1bcEkkwKhfOzgunZYKSSwzvg9Hx1yWZGxENQbEkl5Uz1NA3kFQcmSVkiapJJIESYnhJJMD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSExISExUVFRYXFhcXFxAVFhgYFRcXFxgVFhUZHiggGBolGxUXITEhJSktLi4wGCAzODMsNygtLi0BCgoKDQ0NDg0NDjcZHxk3LSsrKystLSsrKysrKysrKysrKysrKysrKysrKysrKystKysrKysrKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAwEBAQEBAAAAAAAAAAAABAUGAwcCAQj/xABMEAABAwIDBQMHBwkGBAcAAAABAAIRAyEEEjEFEyIyQSNCUQYzQ2FxgZEHNFJiobHBFCREU1RyktHwFWOCssLhc5PD0hYlNWR0g6P/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/APcUREBERAREQEREBFD2htOlRANRwBOg1cfYFUv8pp5Ge8oNEiyzttVT1AXycfUPfKDVosqMQ894rq2ofFBpUWeFQ+K+xXd9I/FBfIqRuMeO8fvXRu03DUAoLdFAobVpmxOU+vT4qegIiICIiAiIgIiICIiAiIgIiICIiAiIg8v8pHl20q4JJyNpNHqG7a6B73E+9TqAsq3bRH9pYtxIADqVzYeYpdVKo7QpRwkv9bGvqD+JoI+1BYNXVqqn7UA9FVP/ACh97p+xfVHa0nzZ/iE/CI+1BcMK447Hmn0HvIEe1d8A4OLT0k/ETYjxBH2LIbTDG46ucW1tSDTNAPAdTDHt5w02zl4e2deC3VBrtm48VQbQRr7+vsU5Z/ZWLpAyxrWg2IbAEewWV4KkgZQXEjQR7ySSAEHRfD0Lnfq3e40vxcuFXFtHNmb7Wuj3uiPtQRsWLK88kqrnYcZiTle9onwBsPtVDVqNeCWua4eLSCPsV15HeYd/xX/ggvUREBERAREQEREBERAREQEREBERAREQeLbapB22sYHcQY6jlBvBdh6TiQDobxK07AYWdxt9tY8/Xoj4YaitQ0WUFRjG3XCgLqbjAodNt0FzgsRlubNsSfokWk+DYAv0IJOts/8AKlgHVaVHEMlr6TiwkRDqdUCQ4GxGZrbX1Wi2ebqZidl0qlNzS2A4d0uYJ+kWtIBM9SFR4/sfatWmQDIPhePcfwMr0ryb24D651HW3r95+KpMb5KtuA2/iSSfcToqFjn4epfob/zQeyyCJFwVWbRbZV3k9tsOETIOv8wrTH6SFB5/twZXZmktcNHAkOH+IL0H5Na734PM85nGq+8AaQLx1ssDt9tytz8lp/MvZWqfgqNgiIgIiICIiAiIgIiICIiAiIgIiICIiDx14na+0D/fUx8KFJalgssvgzm2hjn/APunj+CGf6VrGCygq8Y1Q2NurDFqIwXQWmBCu6AVPguiuqKDlXwwN1ndv7AFRsgcQWuhc30gUHj9B9TDvgyADceHrHq+5bjZe0xUZE6rp5T+T4qNzNHEPt9Sw+FruoPgzE/A+Hs8FRaeULbn2rZfJWfzN48K7/8AKw/isvjmjEU8zOcDT6Q8PatJ8lDvzas3wxDvtp0/5FBtkREBERAREQEREBERAREQEREBERAREQeO+TIzVsU/6eLxLvca7yPsWvAssn5DcVEPPfLn/wARLvxWvIsoKvFhQ2f14epTcWoTdUFtgirmgqPBFXNEoJYK6NXJq6tQKjFjfKnYYeC9o4uvrW2hQ8ZTsg8iwOMdSflPivQ/IjadIOc2wNYh0+LwIv6yAPgsh5X7MvnaLhUuy8eRpYg3HgVR/QCKj8kds/lNGSeNnC/1+Dvf94KvEBERAREQEREBERAREQEREBERAUfaFXJSqO+ixx+DSVIVR5XVcuBxbhqMNWj27t0fagwXkTQy4akPBjfuC07xZVPk3RikweoK6qiygpsYFBbr/XqU/GKuJv8A18UFlglc0HKkwblcYcoJ7F3Yo1NSaaDqFGxYspQUfFCyDG7fbYysXsvYVSvinNpR5pznDxhzAI9fEVudvNsVX+QLox4+tTqN/wArv9KDReQOwa+HNR9UZQ4NDW9bEkk+Gv3rYoioIiICIiAiIgIiICIiAiIgIiICoPL18YCv9YNZ/G9rP9Sv1mPlEf8AmmW/HWoi1zwvD7DryIIGxacMb7Ap9YWUHAYgBo7OueFxtRqnlEkaa+A6qRiMV03dfWPNPjUCZjTi+/wUFXjiqsm6lbRxsejre9jvB7v+nHtcz6SqKmNieCpw5rBtzDGvIF782UesEILzBn+v91dUCsxRxuXN2dZ0Z+VoJO7aHWvec0DxIIV1Sx8ZuyrnLn0pkzkYKnDe8zlHi4EILukpNNVLMeBPZYiziLUnnSlvpEagg5QeruHVShtINmaWJtOlCs7SjvrQL24fW/h1sgswuOIFlxO0miRu8RbN6DEEcIpkwQ2/nRHjlf8ARdHHFbTYASW17Zp7DEnl30xDL+YfHjmpxzskKDbrbKj8kHRtCh6zUHxpP/GFc7bxbIPPYkXp1RcPLLS24zNN/CDoQVnthVoxtAibVmjQ945fxQexoiKgiIgIiICIiAiIgIiICIiAiIgLH/KO4FmGYbzXzRDTysf4kdXDqtgsR8oTprYVsiO1cZLQLbsDmBHjqgi4PCAw00gYe30VA2qNcw+m9dzHWIMqMcNJY40Bd1I3w+GkSdnkyRiDEFrriYyWndt3kig9kNdmp6NOuyzejVYTcjpm1GnSHQubwxuURT4SBYbLEZC4WjSPybppk+oYDPY+j2fmh5vTc4Yfoptl3pA84RExctmCHKsx9MdpDBdtb0eHIMsos0L+IkCLxMQYyiZ20KTQx7Q1vI4Rl2cBahhqfKDHWINunLkVdioLnWFxXGmFOtWmIvfuxB8IdcBQT6jAd4d2CS3FX3OGfqym3rUEzAF4zRDssCbarh53vZNMnFR+b4Z0zhqbetYZpiLxmjKcoAcc+9oIfLRy4vu4Em7qYmHQPjY9+4CuqlIE1ezbJ/K77vZ5maFJvecCZAiDrEPhoBQW5wkk9iDNWp+jUTrgMs2rXnlnU8kAcakNwM+gbc/srLTs4skxX9WS3/D07RRWUQXnsx513osCdcDl1zz6p1PLyXUrA4UHJ2IF6PoNn3nAPZ3atojLb9wSziQd6+COWoRRuW1D81eZJwmG6NrjNemGxacobbLmd2r4Iy/s9XVB5jEda2KvIrXtWmbTJdYEBsJ+EBpO7AXpkR+TbPOuzQ2I38HkDYmLZOQZ1OrYYbzzIvVknc4TriaDiZ3sz2hdmibF0SGtdRRbWou1LXCS0ns8S3vVqh1qEDmH3XloGbwDi2vTcelVjrgjR4PeNtFe42kBTB3YbDB6LCt/R6emWsYvUI1jUaQ52Zrw11oGUDTIIgDwmFB72i+WOkA+IlfSoIiICIiAiIgIiICIiAiIgIiICwnlpU/PaQvw0ZtvBzPIuWA/R6hbtYDylBdj3QCS2jTbYPMczu44OHMg+a+JysfNUCN9E12N1oGoL1KBjzZPUAAk5tFG2niwC/tm23p89gNB/aDtHUrRlGumS5OSoX2VN7rcVRshnf2gzUVaejmEC5HvgnRpNdtPGTTcd7E03n5w5sTRkGX0THngZItYwYhQUG1aoDnDM3WoOfB/rKFOIyzqI9UwblkU76gMkuGrxzYfvYjL+H4HiCuNqV5J7QSarh52mbfleSIyfVyx7WyTDlTOqfX6sPPTmH4gj6PUDKLX05roOgqDK8yOTFRDsDpvWCOMR4a26PvCuq0He6XGMn/04jzVMXzj1d7/AOy2VUjawynjiW1/SYX9c0SC5sQLC9ujrwVcVK4G84xpje/s8aNpzzi0T109JNkF1RY3Pyjz88uzTrgY9sxb6XTzal7MpCaPCNcL3dk9cJVZ3Tbw4fYzgzKDh6o3gEjz4HNs8/oROhEzHTmi/m1N2RUBNA5xcYI82yjzUKwHKJM/V1js+HMg6YfDtNOmMreSkOTY3e2fVZoDl0EWtFh2WZdXNYakw2zs2myOh2dUmZzdAZ10PSgV87OrNLaPG27MLbebIPNh8S0RkbBmDy2OXg4Q8EzGM3ZfvmQKYdO+2ZEfkmGqSXNpxozNOkcXJkAoqNo02hoEsHCGx/5aB+i0xZg+pEC3TpTAy9d0vcQQZc4WIPWO4P6hbDaeJGYgVGkh0RvaJ0rVQQWtp/3DhH1HDVpKx1cyW3JlszLiL31gA6hQe4bJqZqFJ30qTD8WgqWqvyWfODw5/umDp3QB+CtFQREQEREBERAREQEREBERAREQF5xtY5toVzAMOptAim7RjJs5zT16FejrzPEuDsTipI848QTRvkty1RlNh4oLOlTLCwZXiHAcNPHtEDE0iLse5ujzrYwSeAOAqzXcABmeOBovV2mO5gGz2jPF51MyZNzVy2e51cKfi6RRa4nMyk/WjVuZpeFyAOgLoeNYWuFnjia3TaLR57Dt8SNKfsjU5XPJgzmNrkmM4PEw+debOxFUxlcy9mwB1gttAcaQ15NniDuD5ybOqu0JYJmIH0oixEq3q1Ccpl120Td+L6is7R7R4DXWIMQ2amjUJy8Uy2hHaVDM5j3miZHszWmIQdaNcZZ3vdqHztIa1wNXMt4T7je6tjiOftRpjfS4W2UMnmZbLfXl7+ayp6OItzgcDT52OesGzJboSIB68ttVanFWqdqOXG+noiMpaOtMxl9c5JvnQXuGr9oBvP0ho87g/wBjJiCyfXl5u9OSym7JxQmj2ouMB6bAGc4qgctPizfVjNHBlAMwMLie1A3o+ctEb6h+yExG7n15Zk80xwqXsnGWozWBlmzv0mgZL31G9KQzZtLRvIhuSCSE3ZWMB3PbNILcFB/KMEZzOxDO5SgzAHDAcRDcuV08jtDsGnftvQBn8rpdcDUdmDmYeDekXZgIsXgQMh64HHeb7cG2DHzppnNi6tPu0RmzHh6B5GXhylx/KeJcWMG8JmlT0xWNcZdQxjZllITdgOa0luaA5jA6iBtmu6X8RIDqmlXFOsHY08raUDRlp6AXyML8Zjmw8z0gXzHQXu839q222JcHc5kP/b3atPjl/Wfy0titqiHm0S93TKTe2pJ6a/YFB655C1M2Bon1PHwqOH4K+WX+TipOCaPB9QdfpT19q1CoIiICIiAiIgIiICIiAiIgIiIC8xwFXtqjpID69SeJzAcz3Aatcw9PBemkryzYjju3VASLl89swWN5fTkfFvtCCwr0w+m4Bjah3cTu9n1r7nF07hj2E3aARaZyiAXlnzjKZ3juAjtJtSxTR85ru5mvLTZgPgZBIh4aJleHZmktfdzYLsDV9I9tw9rXaVojpMXJJdV4yhDswpASZkYf/wCbU5qdTxqa+LzqanDBnqhIFLm0pA/PQLYd7jZ89To4/vcQAVbSceAH+6njrOk5JPMOKfXr1ghWWLZlgQ4QQOXFt0woHUmdfwu8Sq8E5miTztHNiP1RMXF/YbeJzBB+YbEwBxgdnRPnn9+tEyWXB0Bjiu22qtBi+F/agcGNPnw2MpaJk0zGXxvknvKqwlaGjjAOTD+mrd+qQDds30k3doY1VoMVwu7UWZjT84eIyOaJnIcuXSe5oMyC7wuJ7Vo3v6SwRv2dcJmy5d315skyeaY4VM2XjbUjvgZZs/8ASpnPWc2ZFIZs2k2FTTgiVDwmJ7UDeD5zTbG/d1w2bLlyX+lk680jRSNnY0FtPtp7PAH51XdObEFsyKfFm0zW3kZSGgSgssJiyQ0mrImjpisS7THvYeWkJmzT48hhozHth3lzmgueYFL0m03+kxlMzwgHpc+AmzaZPClXOWzybn0+0Xcu0ADdtPwMe7J5sFy70WnMDDz2jRcbTqaY2qCeIgCzjfQC5mm1qopsXTc4DgcQQ3mo43vNwU3rPHi7UTY95lTNjdoCHeEAk2Y3mcTo0kjr1vK2VTBgMpk0gIbRN6DmEQzCa76oXNINEa8Qyt1cyXY3aNhA6NpiBu/oA8tOw1008LawelfJVUnC1B4VnfAspn+a2awPyR1ZpV2+FRp6d5vq9i3yoIiICIiAiIgIiICIiAiIgIiIOGPflpVHeDHH4AleZ+T9OWiAbsc0loeSOEx2lJwe2/iJ9cwvSdqUs9Gqwd6m8fFpC8/2dQAykRaCJAMH2832oJr8Tmc0GoLvp23tF3M/AHkr0w4c5EAzxW4nMDKXF0s1IOFME7sGdxh3n5o/TcVBJJqkWsZLRZwcr5ge0NAc8gZYmo88uWB2geTyC8zcnUyqjFbJJY5kU3FzS2TSw7hegyjcNDJEMMjqHZbAACCh2kyDUtEGobMxIsKNNo0cZ/w66AZgSq8+c6+djWuNKHrEH7uvMIV5tHZFV+eGNhwq+oy8NDZLas925F9IiLxH7IrZp3ZjOXc1TTd5RYGNemg5uZBWYSpAbxd3C+lrDmqR1bN9JN36OhWYxMNd2o83jDP5RVEZHgTOQxl0nuaCV84bZeIbl7OppQmH4g8jpffLe38ejoU9mBxGUjJWksxAEVMULvcDTuGSLaO1ZoJCCbhsT2oG8Hzmk2N+/rhs2TLkj627mDzSDZd9n4uWMO+maODM/lWKdM4kjNIpy7Ny5u/yuAaJX7QoVs4OWrArMdz4qMgpZXcOSIzej0PNINl3wmGrBgBD5FOi0ziMeeJlbO/iySeDv6v5XQ26CTvpB4nmBidKm1HcmNZ0a0aaWuBwtmnJUh1I5uVx7Zx8zj38u0GOF3PiwMzpbM3s25V8Owz3BwtcYgCamPPnazX05u2BlbeOWzWnLM9K2ALjJZSPHUdemXnixFKu3mrRPZ3tGbKRAblIU+PpBjBLA3K0X3eHpgZadX6byQOzHst0kjH7YMmNRmIs4Hla0RDQB00P+w31fYzjMFjJnSnRYR5/wa79f46tP03AwMV5MMe6alR51s2BEmYkzPwVD5HqnFiW9IpEe41Jjp1Gi9LWa8jdk0qAfu2Bs5QTcuMTq43MeGglaVAREQEREBERAREQEREBERAREQFi9oYPc1S3umSz2eHu0+HitfVBVTtSiHsLXg+IIsQfEHxQUjXo4qjxG0KtFxFSk9zRo9gzSPWwXB9kr6o+UOHcY3jQfB3CfgboLRyNC4sxbDo4H3hdmvCDuxdmLg1wXZrggkMK6gqO1wX2KgQdwUXLfDxXOrjWNElwHtICCQVxeySon9qtdamHVP3QSP4uUfFTcDQqE5nCPAax/ugvMBRDGAddT7VKlQKVFyl02wg6IiICIiAiIgIiICIiAiIgIiIC5VaIK6ogrK2y2noqzGeTbH2cxrh6wCtMiDA1fIjD9KLW/uyz/LC4HyMYNHV2+yrV/EleiQvzIPBB53/4Rd0xOKH+KmfvavpvkrV/bMT/APj/ANi9B3Q8E3Q8EGFZ5Mv64nEH/lD7mKQzya8auIP+OP8AKAtlux4L9yBBk6fkvS6iq796tiHD4F0Kfhtg0WGW0aYPjlbPx1V9lCQghMwiksogLqiD8AX6iICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiD//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxATEhASDxIPDxAQFRESEBAQEA8VEhUPFRUWFxYVFRUYHSggGBolGxUVITEhJSktLjAuFx8zODMvQygtLysBCgoKBQUFDgUFDisZExkrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIALABHgMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwECAwQGBQj/xABCEAACAgACBwYDBgEJCQAAAAABAgADBBEFBhIhMWGBBxMiQVFxMpGhFEJDYnKCUiMkNERjorGy4RUzU1RzktHw8f/EABQBAQAAAAAAAAAAAAAAAAAAAAD/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwCcYiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICImhpfTOGwybeJtSpfIMfEx9FUb2PICBvzS0rpbD4dNvEWpSu/LaO9iN+SrxY8gCZGWsXaq7bSYFO6HDvrQC55qnBfc5+0jjG4625zZc722Nxd2LNl6ZngOQ3D0gSlpntXG9cHTnlwtvzAPMVqc8vdgeU5bE9oOknP9I7selddQHzKk/WcksvCwOkTXbSA/rV3XYP0InrYDtNxyEd4ar18xZWFboUyy+RnCZQBAnPVvtBwmJK12Z4a5sgFsIKMx8ls9eRAJ8s52E+YqpMnZjp97q2w9zFnpUNWxObGrPIgnz2SRv9GHpA7mIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIieZpvT2Fwq7WJtSvP4V3l2/Sg3mB6c8/S+m8Nhl2sRatY+6Dvdv0oN7dBIx1i7U7XzXBJ3Cn8VwrWn2Xeq/XpI8xmOexmexmsdvid2LMfcneYEkaw9qVjbSYNO5U5jvrNlrPdV3qvXakc4/H2WsXtd7Hbi7szMep8uU0yxgCBUy5VgCXhYFVEyAS1RLwIFQsuCS5BMoWBbVXO+7M6v5y3l/IWf56pH/8AtBFOS+M/QSQ+yUl8Rax/4LADyHjr/wDECVoiICIiAiIgIiICIiAiIgIiICIiAiIgIieRp3WXCYQZ4i0B8s1qXxWt7IN+XM5DnA9eeVpzWLC4Rc8RaqE71rHisb9KDflz4c5F2snahiLc0wg+zJ/Hua4j34J0zPOcBiMWzlmZmZm3szMWYn1JO8nmYEh6ydqV9maYNfsybx3jZNcRy+6n195HmKxbuzO7M7tvZ2JZiebHeZrliYygV2olQJUCBQCXgRlLwIFQJeJRVmVUgUCzMifKat2NVdw8R5cJoX4l24nd6DhA9G/Hou5fEfp/rPPvxLvxOQ9BwmECVgZcMN8lvsdH8pdyry/vLImww3yX+xus54hstwVRn7nd/lPygSfERAREQEREBERAREQEREBERARE8LT+tmDwgIusBsyzFNeTWH0zH3fdshA92eNp7WfCYQfy9gD5ZipPFafTw+Q5nIc5F2sfaXirs0o/mtZ3eA52kc3y8P7d/OcHdiCSSSSScyScyT6k+Zgd9rH2nYm3NMMPstfqCDcR+rgvQZ85wN+KZiSxLMTmxYkkn1JO8nnMBaUygVJjKVAlQIFAJcBAlwECgEuAlwWZVr+UDGqTKtfnMVmJUcPEfpNW25m4npA2rcWq8PEfpNO29m4nd6DhMeUQKZRK5S5UgW5S7YnqaE0DicU+xhqntIOTMNyL+tz4V9icz5AyU9WOyilMnx79+/Hua9pagfzNuZ9/6RyMCM9XNX8Tin2cNW1mRyZ+FafrfgPbefQGT7qnoBMFQtSnbY+K2zLLasPHIeSjLID/AFnqYXDV1oqVIldajJURQqgegA3CZoCIiAiIgIiICIiAiIgIic7rDrlg8JmHfvLR+DVkz5/m35J1I6wOingawa34PCZi19u3ypqyazr5L+4iRbrJ2j4u/Naj9lqP3aidsj81mQPyy6ziLMQTA7rWLtJxV+a0n7LWd2VZJsI52biP25e5nD3YknzzzzJ9zxJmAtKCBethBB3H1B4EeY/1G8cRlMi0NYbDVW+wu07AZsK68/vNlwHDM5ZzCBLgIFAJcBMl9oYjJErAAGSBsjl5nMkk85ZlAMRmchkPTjAEuVJmWuBiVZlWuWPco4bz9Jr2WluJ6CBsWYhRw8R+k1rLWbieksiBQiUlTAEC0wBPU0NoLE4p9jDVPacwGIGSL+pz4V457zn6ZyUtWuyapNl8e/fsMj3NRK1A/mbcz/3R6gwIt0JoLE4p9jDVPaR8RAyROHxufCvHgTmfLOSnqz2T1Jsvj379uPc17S1A7vib4n/ujkZI2EwldSLXUiVVqMlRFVVA5AbhM0DDhMJXUipUiV1qMlRFVVA5AbhM0RAREQEREBERAREQEShM5fWPXvBYXaXb7+5dxqpIOyfR24L7ceUDqc5zWseu+Dwmas5tuH4NWTMD+c8E9ic+RkU6x9oOMxOahvs9R/DpYgkfns4t0yB9Jx72kwO11k7RMZiM1Rvs1R/DpYhiPzWcT0yHKcY95mHagQBMCVylcoFAJcBEqBAvNhIUbsl3DIAHjnvPEymUqqzKqesDGqTKtcta1Rw3n6TBZYTx+UDYe5Rw3ma9lpPGWZygYHhzHUQKxEqBAtMAT0tDaExGKfYw1T2sMtogeFc/43PhXqd/lJP1a7J61yfHv3rce4qLLWD6M+5n6bPWBF+htB4nFNsYap7WHxFRki/qc+Fepkoatdk1SZPj375tx7iostQ5M+5n6bI8jnJHwWDqqRa6USqtBkqVqFUDkBM8DDhMJXUipUiVVruVEUKoHIDcJmiICIiAiIgIiICIiAiM5yGsXaFgsNtKh+02jdsVEbAPo9nAewzPKB185PWLX/BYXaUN9ouGY7ukggEeTvwX23nlIp1j16xmKzV37qo/g05qhHo54v1OXITlWtgdbrJr/jMVtLt9xSfwqSRmPR34t9BynJNb/wDJjJiAJiAJdAoBLpQCXAQEAS9UmVa+kDEqTMlcte5Rw3mYGtJ4/KBsNco4bzMDWE8fpLJXOAmKy8DPLed3r5jPyBz+XpMkqE4nzP8AhA12qZs9rcD93IcPFx35HiPlM6VgZ5DiczxzJ/8Acp6WiNC4jEvsYap7mGW1sjwrzZz4V6mSdq12UVrk+PfvW49xSWFY5NZuZumz1gRhojQmIxL7GGqe5hltbI8K5+bufCvU+0k/VrsnrXJ8e/etx7iksKx+p9zN02eskfBYKqlFrpRKq13KlahVHsBM8DBgsHVUi10olVa/ClahVHsBM8RAREQEREBERAREQEREBOM1m7RsHhSyVn7Veu4pWRsK3o9nAewzI8xOY7VdcrNt8FhmKKoAxNikhmYjPulPkoBGeXE7vIgxV9ANwHoPSB1OsWvGMxe0LLNio/g1ZrXl6N5v1JHITmXtmMy2BcTKCAJUCAlcoAlwECkqBL1SZVr9YGIJMq1yx8Qo4b/8Jge1m4/KBsPeo4bzMD2k8T0lgErArEoJcBApKgTf0PobEYl+7w1T3P8Ae2R4V5u58K9TJQ1c7JkXJ8fZ3p3HuKSy1/us3M3TZ6wIx0PobEYp+7w1T3MMtrZHhXP+Nj4V6kST9W+yetcnx9nenj3FJZa/Zn3M3TZ6yRsFgqqkWumtKq1+FK1CqOgmxA18FgqqUFdNaVVr8KVqFUdBumxEQEREBERAREQEREBERAREQERED5q1jrP2vGZ55/acTx4/7555hWdFrdkMXis9x764HmBY2R9/L2y6+KUz3jePUQNMpLMptFJYajAwZSoEzCmXir13D1gYgkyrX5+UsfEKPh8R+k1rLS3E9IGw+IUfDvP0mu9hbienlLMpXOBUCIgQKiVE3tD6HxGJfu8LU9zjLaCjcvN2O5R7kSUNWeyVFyfSFneHce4pLKg5NZuZumz7mBGGh9D4jEv3eGqe5hltbGWS5+bsdydSJKOrXZMihX0hZ3jce4pZhX7NZuZumz1kkYDA1UoK6K0qrXglahVHQefObEDXwOBqpRa6a0qrX4UrUKo6CbERAREQEREBERAREQEREBERAREQEREBERA+fNe1/neK/wCtb/nM457GU+Ekf4dR5ztNf/6Zih/av9TnOKvgZU0k44hW+Yl/+1f7Mf8AdPPiBvPpNzwVV6ZmYu9ZviJM1xMlcDJESoECkqJ6GidD4jEv3eGqe592YQblB4FmO5RzJHCShq32SIMn0hZtncfs9LEJ7PZ8R/bl7mBFuiNEYjEv3eGqsufdmEG5c/N2PhQe5ElLVnskVcn0hZtn/l6Syp++zcx/bs+5klYDAU0oK6K0prXglahVz8zkPPnNmBrYDAU0ItdFaU1rwStQqjoPPnNmIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiBDXa9oF67vtSgmm/ZDkDcl+QUA+gbIZH1zHmM4vv4z6wxOHSxGSxVsRwVdHAKspGRBB4iRhrP2Qo5Z8BaKSd/cXbTV5/lsGbKPcN0gQtKzqtI9nelaic8K9gH36GSwH2Cna+aiaCapaRJyGCxvXDXj6lYHiCZa51mB7NtK2f1Y1D+K6ypR8gxb6TuNXOyGtcmx9ve/2FBZUz/NZuZh7BYEWaI0RiMS/d4ap7n3ZhBuUHgXY7kHNiJKWrPZIoAfSFm2ePcUMwT2ezcx/bs+5klaP0fTQgrorrprHBK1CrmeJyHEn1m1A1sBo+mlBXRXXVWvBK1Crn65Dz5zZiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEhURDxAWDxASEg8aDxUPFhURFRIVFRUXFhUVFRYYIighJB0lHxUVITEhKCorLy4uFyAzODMsNygvLisBCgoKBQUFDgUFDisZExkrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcDBAEFCAL/xABAEAACAQMBBAcDCwMDBAMAAAAAAQIDBBEFBxIhMQYTQVFhcYEikaEjMjNCUmJykqKx0RSCwUPCw5Oy0uE0Y4T/xAAUAQEAAAAAAAAAAAAAAAAAAAAA/8QAFBEBAAAAAAAAAAAAAAAAAAAAAP/aAAwDAQACEQMRAD8AvEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAr/az0iurKNvG1q9T1rr9ZKMYyl7HV4Sck0vnPsAn05qKzJpJc2+CRHdR6dabQyndRqyXONvmu89zcMpPh2tFE3uqzrvNxVqVn/wDdOVReik8L0McasXyYFp6jtWXFW1q3zxK4moeqjDez2dqI3ebQtTqPKrxorL4UaUF8am+yJZOGwJTS6e6nF5/qnPwqU6TT/LFP4naWu1S9gvlKFCs8fV36Db/X+xAXI4cgLatNrNu2lWtatPvdOUKsV73F/A7qz2i6XU53HUvCz18KlJLP3pLd+JRO8cOQHpWw1e2uFmhcUq6y18lUhU4rmvZbN08tuKby0m+xtZZONll/cO+p0uvquk4VXOE6k5we7B4xGTaWHjlgC7AAAAAAAAAAAAAAAAAAAAAAAACqtuvK0/8A1f8ACWqVXt1Xs2nnc/8AF/AFTMHAA5Un2H0q0u/3nwcAZXdNc1nyPiF8pcov1wYavJmva/5A7XfOMnyjkD7RNNkkM6lH7tvcy+NOP+4hSJ5sapt385dkbOsvWVWjj/tYF1AAAAAAAAAAAAAAAAAAAAAAAAFWbdPmWn4rj9qZaZVu3T5lr+O4/aAFRg4ycZA+j5OWzgD4q8ma9oZ6vJmKyX7gdgjlHGDkDlFjbEuNzc96oUf1Tl/4lcos/YdD27uX3LRfGswLYAAAAAAAAAAAAAAAAAAAAAAAAKs27fR2v46/7QLTKr27/R2v46/7QAqLIOMjIHIOMjIHzW5Mx2K/c+qz4M509fuBvJDBkUTncAxpFrbD6OIXc++pQj+WEn/vKuUC2tiUGre5b5O6WPShS/kCxwAAAAAAADHWrQgszkoLvk1FfEqPpT08vP6itbwqRtoUqtSGKaxKSjJpSdSXesPhjGcceZGat/Uk96pKUpfaqNzb/ullgegqNaE1mElNd8WpL4GQoG01GpB71OcoT76bcZeWUd9Q2nVbXCuatKqvs1PZq48OrTfviwLgBH+hfSujqlCVejCdNQqOElUxneUYyysdmJLnh+BIAAAAAAAAABVe3j6O1/HX/aBahVm3f6O1/HX/AGgBToDRwBzkHyAOKz4GbS1yNas+BvaSuQHYqI3TIkfSiBiUS4dj0MWVR991U+FOkv8ABUqgXFsnhjT4vvr3T91SUf8AAEyAAAAAAAB5+2kaRcUL24rVaUlb1Ku9Tq4bp4lGOU5rhF53lxwRuhczh8yTSfdxT9HwZ6klFNYaynzT7SI65s4026zJUna1XnM7VqnlvtcMODfi4geedU1SvJzjvuMIuC3afsb29FPMpLj38FhHzoumOr7W/CCbfspJzeOfD/OX5FtUtiilVlKvfOVF7uFSpKFR44LMpOSXovcRDaDoNDT7xW1unGl/T0ZQVSTm5ScpqbzLn82Lx2Z7AMmm6pXs6UqFtWqUacpb08NKU5bqjneSTXCK5NHNp0guKUt+nXqRk+clOTcvxZfH1ydBTupx4Z3l3S4r/wBehmheR+tFx/DxXuf8gWLo+0m7jhVlC4j3tdVP80eH6SaaV03ta3zlOi/vrej6Sjn44KWtLin2NSf3ufuZ2VO/aAvm3uIVFvU5xnHvg1JfAylH2urOD3oycZd8W4v3okmndNriGFKSqruqLj+ZYfvyBZgIvYdNrefCrGVJ96+Uj8Pa+BILS+pVlmlUjUXbutPHmuwDYKu26fR234q/7Uy0Trtb0S2vIdXdUY1orLhvLjCWMb0JLin4oDzA4GOpB44cH2He9EOjt1f3MrWUJW7hTnKVSrSqbqlFpbklw5555952mr7PdTt8t2/XwWfbtZdby+48T90WBC4ReOPPwDRuVKLUnGScZr50ZJxkvOL4r1MUqYGlX5HZ6SuXkaNemdnpUf2A30jJFHy2lxbSXbngSPQOh97d4cafU0n/AKtdOKa+5D50vgn3gdDwXFvCXPJdGzWk46dRysbzry48MqVabT8msP1IL0T6FalDUoyvLeCsaEqjjJThJVWoyVN7uXLm1LDSSx4FwgAAAAAAAAAAANXUdNoXMHTuKMK8HzjVjGa9zNoAV5rWyWyq5la1J2c3ngvlqWcfYm8peEZIgms7N9TtsuNJXdNfWtnmWMc3SliXpHeL+AHlSUXGThJOE1zhNOE15wlhr1Rkp3M48nw8eKPTGq6La3cd26oU667OsipOP4XzXoQTWdkNtPMrOvO2fZCrmvT+LU/1PyAqqF/38PI3KF43ylk3NZ6A6na5c7fr4L69o3WWPGGFP9L8yMRlxaT4xeJLk4vukux+YEnpX0u8yR1qtTlvdU2l82VGWZpd+HutejIzC6kvveZnp6gsptOLXLDePVL+GBYujbQ6qxHrlP7lwva8uOJfFkvsOnVKXCtTlTffB769Vwl7kymo3FOqsSUai7cpSNu1rxgsQ4Luy2vTPL0Avyx1S3r/AEVWM33J4kvOL4r3G4UNR1Hlnjjl4Eh03pdcUsJVW4/ZqfKL3y4+5oCydV0W1ulu3NvTrrs6yCk14pvin5EM1fZNZ1Mu2q1LWXHCb6+n284ze97pI7Cw6dwfCtT9aTT/AEy/lkhsdctq3CFWO8/qy9iXpGWH7gKE6adDLjTNyVadOrSqScac6e8nvKLk1KDXDgn2vkbvQbofcahF1KUoU6EZOEqk8ye8km1GmueFJc2uZbvTjonT1ShGjOrKi6dRTpzglLElGUeKfNYmzY6IdHaem20banOVVKU5SnPCcpTeW8Lgl2JdyQGnoHQaytMT3OvrLlUr4k4v7kfmx80s+LJMAAAAAAAAAAAAAAAAAAAAA6TWulthZy3Lm5hTqcPYWZzSfJuME2l4s7siPSrZ7Z385VpOpQuJKO9UpSypbqSi5U5Zi+CSzhPHbwAkGlavbXUd+2r068e+lJTx545epr610asr3/5VtCq8cJtYqR/DUWJL0ZUWrbM9StJdbbtXWM4nbSdCuuOeTln8s8vuMOl7RdTs5dVXn1zjzpX0JU6yX48Rl6tS5ASXWtjsHmVldSh3U7ldZFeEakcSXm94gGt9DNRtMuvaycV/qUPl6fnmPtJeMootzottJtr2rC2nTnb3FTO4sqpCTUXNpTXHlFvilyJuB5Mjx4xefFPt8zPC5mub3vP+eZ6N1zoZp97mVe2j1j/1aXyVXwzOGG/J5RAda2PTWZWN0p88U7tYfglVgv3j6gV3Tv8A08/5NyleMxaz0avbNv8AqrWpTim/lEuspcFnLqQzFf3Y7TrIT5OL8mu0CR077uZtUtTfJvh48SLxuWufHz5+9GR3Cksbzh8figJ3Z9MatvwhXksfUzvr8sspfAkGn7UVwVehvd8qUlF/kk8fqKclRqLkt5L7PH3rmfEa7QHpHTOl9jcYUK8YTf1a3yUs9y3uD9GzvUzyxC7fedxo3Se6tsdRcTpR+ypZp/8ATlmPwA9IAqbRtq1bfpUrmhCr1tWlThKm+qlmpNQXsvKlz44a5FsgAAAAAAAAAAAAAAAAAAANHVtHtruO5dUIV49iqRUseMXzT8UbwAjvR7oRp1hN1La3UanHE5ynVlFPg1BzbwvIkQAAAAGiL65s/wBNu25Tt1SqPnUtn1Mm++W77Mv7kyUACmda2Q3NPjZV4XEfsV/kqnpKKcW/SJAtW0i5tHi7t6lt3OrH2HnsVRZg/RnqM+alNSTjJKUXzTWU/NMDylGTXFPHdgyO7b4Tiqn4lx/MuPxL41vZlplzmUaTtKjz7Vq1TWe902nB/lyQDXNkt9RzK1nC8h2R+gq47sSe63/dHyAgdV0sNpyg1ng/bXDxWH8H5msrrd5rDXPeawl38M+PDwNvUrCtby6u5ozt5vKxWi4Z4fVk+EvNNmbors91HVpb8Y9RbZ+mqpqOPuLnN47uHe0B12jXcP6yhXalOFC4oVKrik2405xm4xbeMvdwlnHkWTrm1K7rtxoJWlLs3PbqteM3wX9qz3SIl0k0inpt1Us6b6yFHqVvTSUpOdKM5N7uO2TwvLmdY5wfa4+ftL3pZ9MASjT+ll1Se9TuKkG3l+25p+LjPKfm0THSdp9dYVenCsu+OaU/VcU/gVOoy5r2kue7xx545epko1n2MD0FpnTuxrY3pu3k+yusL86zH3sklGtGaUoSU4vk4NST8mjzfaXD7zsbLUq1Ke9b1HRqZ+dFtJvs3lyl+Fp+nMD0EDBip3/BHIGYAAAAAAAAAAAAAAAAAAAAAAAAAAYrm2p1I7tSEakXzjOKkvczJFJcEsJcsdhyAKV2kdB9Rq3le7oUFXo1XTcVRknUio04Qe9CWPs/VzzK0rwlCXV1IypVFzhVjKnNecJJP4HrU0tU0i2uo7l1Qp14d1WEZ48s8gPKMsriuDXJrhgxz1SpDjKMaq7esTz+eLUviy9da2OWVTMrSrUtJccRbdennxU3veikiuekWyfVaP0dKN3HslbSW96wnhr0bAjFhrM6jxGEace6Lk3+aTbJJoOalxRi8y3q1CKUVnhKpHOEuzGX6ZNbo3s51apNx/o50VnjO4caUF+7fomXd0K6CUNP+Uk+vumsOo1iMO9Uo9ni+b8uAEuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEREQEhISFRAQEBMREhIQERUVEhAQFRcWFhcVGBUZHSogGBslHRUVIjEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQFjUlHSUtKzUrNzA3LTUrMzcrLS03Ky0tMTAvLS03LS0uNS0tNS0vLSsrLy0rLS8rNzMrKys3N//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAgEDBQYHCAT/xABGEAACAQIDBAcEBgYIBwEAAAAAAQIDEQQhMQUSQVEGByJhcYGREzJyoRRCUpKx0SM1Q2KitDNEgpOzwfDxJCU0c3R14RX/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQMC/8QAHREBAAMAAwADAAAAAAAAAAAAAAECEQMhIgQxQf/aAAwDAQACEQMRAD8A7iAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACk5JJttJJXbbsklq2ziPTTrerTqTo7PcYUYtx+kuKnUqtfWhGS3Yx5Npt65F3rj6ee0c9mYaXYi93F1Iv35LWhFrgn733ftI5KkBtuD6d7Uzn/+hVTXBxpS3nn9Vwa4cuJndmdc+OhlWpYeuk7XSlSnlrdpuP8ACcmrT7Sf7z/E+yi+1Jc0pfmB3vZvXRgp5VqNei+LSjVgvOL3v4TbNldNtnYqypYyi5S0hOXsqj/sVLS+R5gKwhvNK6V8ry0XiB69TvmtO4qeTdm7XxOGt7CvWpW4U6sox+6nZ+htezetbalGylUpV1fSvRV7clKm4+ruB6HByXZnXXTdliMJOP71CpGa8d2ajb1ZtmzesvZdb+sxpPliIypW8ZSW78wNuBZwmLp1oqdKpCpB6SpzUovzTsXgAAAAAAAAAAAAAAAAAAAAAAc362unn0KDweGl/wAZVj25r+rUnx/7j4clnyvm+sXpnDZeHurSxVZNUKb5rWpJfYjdeLsuN15sxOInVnOrUk51KknOc5ZynN6tgQSKhFbAfFWoNyv335H04enbXUnYuQXkudsl6AUsOFrZ875PyIwrb1R04pya1a0LrVsvxAoCo5PindPkwJOeitZpd/af2mn5aZZECsdb91s0tCNsrWz+1f8AyAuYerKnLfpylCf26cnCX3otM2rZvTvauHso4qU1u33K6jUysnm5Le0a4mpcUufF6FZSu83fJZ+WnkB1HZvXTiI2WIwtKpzlRnKk7c92Skm/NGy4briwMt3eo4qG8m23CnJRs7XtGe81rouBwecrJvkmz4sLjJ3jBvs20A9b7L6R4PFW9hiaFRv6sKkd/wA4XuvQyh48oWlGzSdm1nmZzZvSbG4b+hxdeCWSj7Rygrcqc7x+QHqcHB9kdbO0IpKbw1bO3bpuE8rp3lBpcPs8TZtmddWHlZYjDVqbvZypSjVgu933ZeiYHUgazsvp/szE2UMXSjJ5KNa9GV+VqiV/I2WLTV1mnmmtGgKgAAAAAAAGG6WdI6OzcNPE1ndLs06a96tVfuwj+fBJvgfftPaFPDUqletNQpUouc5Pgl3cW9Elm20jzP046WVdqYl1pXjRheOHpX/o6fN85ysm34LRAY3b22K2OxFTFV3epUei92nBe7CK4RX5vVs+GwRKnG7zdku+wFEiRHjloXKcN5pLVsCJHFVd1bsfflleMrprnb0/Iyf0W2nK1+a708vkYrBqMpTqapSaXaSfdZfkuIF2hRUI2ybeqe9dP8CRWcrvV913d2IrlxAuUqcp+6r2/wBiHcSW9Tyu434FEgABSKvxS117r/jb5gVZSxSLzaJAW68G4yS4xfGxh41LSu7q3cZuSPnlh87gW8A/efCUrq59bds+RCnCxNpPJ6PJgYijVe/HN5u7SbtmZeq+3JeEvX/Yw0qMlJcc8uBkaVSUnvNWytYC8zofU30nrUcZSwLlKWGxO/GMJO6o1IwlUUofZT3Gmllmn488Zs/VZntnAd063r9HrMD0wAAAAAAADiXX7teo6+HwSk1RjRWJlFPKpUlOcIuXPdUHb4u5HKkdH69P1pD/ANfR/wAbEHObgVFgmSSAokVp1JK7hJZqzSeq77lWYf2kovNMDLTx7catJu0nTm1K9nFxTk15pNehY2emoWy1vpnn38T5MJSc5b3DXzMrGNgKXKuDVpWa77ZMpKNy77aTjuvQCM6kp2cpOVlldt2Wts+GYKJBsA2Uqw3dbPTR3170S9m7b1sk92/e87fIhBXz/HuyAkkVlBpRdnuyvZ8Hu2uk+669SdGG9JR5tLVLLjm2l6lraFdKso5JKO7dQhC9nq1BtX1zuWI61zNvWKgAjosFTbUpfVi0m7rWV7K2r0egI4XEuFbys8o3tfOzkmk+/gWEtudLUoJkoRsXsTSUZNK1uFqkall8cUk35FtIhE7GkjZ+qf8AXOA+Ov8Ay1c1ao9F5m1dU/65wPxV/wCWrhXpYAAAAAAAHAuvN/8ANI/+BR/xcQc7hJJpvS+fgdG69KEltKE2uxPBU4xfNwqVd5eW9H1Oazp7ya7vkQXKjTbtpfLwKqm93e4XsWqcd1WWiIub3rWW7bN3zvwAuqoyjUXqihQC9TSWhcLFZJPLTxvxf/wgpNaMo+sHzqu+Kv8AIuRrrvX+u4C7YNCLvpn4EgIboUbEygCnKzTyyfGKkvuvJ+B8e1Ut/ejfd5uMYv7sclxyR90IptJuybSb5LmZefR6NVwhTqxcpQlOW9e0VGMpPhe2UVdXTcss1Y7rWZjplfkrS3pqH0iUdH5PND6fPlH0f5mb2n0KxdLekqblCCvOUGmodlztJOzVoq7yssuZgKuBqQk4yi4yTzUouLT8H4r1LMZHcFL1vPm2svgq+XC75I+XWplw/EsUqU3k21Hjun20aairLz7zNqmyhKxCo7LxyAtt3z/1Y2zqn/XOA+Ov/LVzUzp/URsZ1MVWxjS3MPTdKDa/b1LXa5NQTT7qhB3MAFAAAAABrvTLodh9qU4wrb0alNt0q1OynTva6zTTi7K6fJaNXOUbY6ncdQbnhatOuleyv7Gr4JNuL+8jvIA8mbX2TisLK2Kw9WlayvUpuMJdyqLsy8U2fGnTlxlHx7S/yZ69nBSTTSaeTTV014Gp7a6ttmYq7lho05vPfwz9lK/NqPZl5pgeapqztdPvWjInW9s9SFSN3hMWpLhTxUd1/wB7DL+BGibZ6EbRwd3VwlVwX7SivawtzvC7iviSINfduF8m1mrZooSdWMtLJdzbXlyKAUKFSgAnGtJcfXMgAL8cVzXp+RdjXi+PrkfEUAyQjNxd4tprinZp+KMfSUvq3vyjq/Jak44mS1s/HUujP4TpJiqS3Y1W47qiozSnFKPu5Plw9NMjKPpZCp/T4aEu059m1rtPVSWau9G9N3jFX1COJXFNfNF2Mk9Gn+PoaRy2j9YX+NxX+6lhYrYGbcLNR5+Bdk7K5YAlCLbSSbbaSS1beSS7z1D0F6PrZ+Bo4fL2iXtKzX1q085+S91d0UcZ6nOj30vHqtNXo4JKq7rKVZ3VKPk05/2FzPQpAABQAAAAAAAAAAAAAYbbXRTA43PEYWlOT+vu7tReFSNpL1NC211JYad3hcRVovhCqlWp/ipebbOrADzdtnqr2ph7uNKFeC44ad3bvhJRl5JM03E0Z0pezqwnTqL6lWEoT+7JJ/I9hny7Q2dRxEPZ16VOrB/Vq04zj6SQHkIHofbPVBs2vd041MPN8aE7wv8ABO6S7lY0PbXUvjaV5YarSxEc7Rl+hq9ySk3F+LkiDmhQyG2Nh4rBu2Jw9Wl+9OD3H4VF2X5NmPuBcpYicE1GTSlqk8mTli95WlFO0NyNna1lZO2ZYaJUpRW9vJu6y7mBfcaUr2bhlHdTu25ZKV+HN6o+WtT3ZSjdNRk1daSs7XXcygCpRrSWjfnn+JOOMlpaPz/MssitQjJSnePDPUsN8SbfZRtvVZ0e+nbQpqSvRw1sRV5Pdf6OD+KVsuKjIDs/Vl0e+gbPpQnG1et+nr81UmlaD+GKjHxi+ZtYBQAAAAAAAAAAAAAAAAAAAAAAABGcFJNNJp5NNXTXgaltvq02XiruWGjTm7vfwzdJ3ercY9iT+KLNvAHFNtdR01d4TFp8qeJjZ/3kFb+A0PbXQXaWDu6uEqOC/aUV7WFud6d3FfEkepwB403lmuKdn3PvJHrLbPRfBYz/AKjDUaj+24JVF4VFaS8maDtrqRws7ywterQlwhUtWpr1tP1kwOFMitTfNs9U208PdwpwxEFxw81vW5uE7PyVzVJbDxSluywuJjL7MsNVUvTdILLfZPRfVJ0d+hYCE5K1fF2r1L6xi1+jg+Vo525ykc16BdWuIxVWnVxVKdLCQkpyjWi4Tr2d/ZqnLtKLtm2lk8rnoAoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRvIKAABXRUJQVlA4IOYKAADQLQCdASqrAEAAPlkYlksjoSOjlABwCwlpZHle5lqbAbdHn5tMg3lr9vfSZwWzhv+G8N/Kz7Z9u+Y31D5mfWD9h/aPRX/i+EfxJ1CPZH+n/LDiXNc/xfoEe231z/c/l372P0/mj24Prz3wlAD+e/3j/rfbd8lX/V/jPQZ9O/+T/K/AV+tH/Q9aD2Dftt7M37VJws8KcOQsAidc7Z5fFixuGLn6ODudjHb9/bnj4bWlLtBGaUOHFV4VneSfl3Sd/1nIvmbYyP3oso8V/R5PDWqLgf40TsvQ8uHGLKHE+sjV/85t1fx4fK9DYiwvn/MD7uN79nhLTjj3uz6/6pY/UpgyQj6w/RXMl4B+TJzCKzxlA0Z4fhs1WXuEHH+flgOnXWtDg54E9khqV1z57BxU/iLK+XMQ6Td/92LFO0J6sctJpt9q3xNWVZx1M2mpyr3GJOCUcJ0xxsDJtZ/PZFwPu8WB5IjBwhKEy6o9SxrmkjTDRic46fYrywAA/v+978e+5HP+jock29fzpXmGvp/qE8ues9CWS23vt4d+bQw8wzK9gNF4HCvEj9+4wtrYyVq+d7/HKL4b1yRp1asa+txd2f8hltqzCobl6ibr6VmlI90N1kH3IfCSgf1+HUPK1BfLcVVrb1IQU0o37UeEGC4KSgXFE95Fj/WNmRJZgbXDWCaWZAEemR+v1zTMr2hl47HvstSuy+EwfP8sOEdVxlJ7X5Vm8XXxQjueD+/o3unVzuKoMvLQscDzfOBpCqGF45/OUf/A/QnQL3rfjTxRZn/SdNqzGi2JTsLxkUjn1VON6YcoZ+D3IysznnzMMUApxtGggri8D8Un29w0cmqQpLbzLYlB9R/s9D93pspyeibaiX8gjqrJXkaR3WYB5D0Ap0QP92ONRzcbfWcXNxGL3Z7T0hpvvHwgs8qfLPDC8IPa+U5H9t9Qt3+GFHH7TNIZ0eaExGe+GSXYIJFjsJxwXB+UyP1orOVuUmKTrL7/BpovNgCYR7l36MWfM97tK5Z/uQ84eZDZ6KxUkiweXRAITLTXPNisU3FiFVVdYI2Gh7GygFDWrsizAWUHRBNGiAZ85pm5nhpHUB2T8tzcnPRKzzuXgRsSlKBoIT+FhAensKuCUgno5EBV0pCIR2Ip9ay1zzbcK94tDvjEmDSKDoO8p/kHD3vg/9KyJHp5aAMtEyL6msTEX4QQZNDl+kVd5DaEft9588Ny1HYlt+BBkw4BlMJ2VRmt2pdiO+eErNuRaiD+hBQAsg/3SdP/OY/HaX1oanlgut45mZvXu3jYpZodz6slsTiQYSlENiHKnDA6jxz9/oGP9Jefv2M9BuIKy+y3w8df3CnH/xkVNYEBXv+VAJeELM+dCmn2Y+JOrS3lhdvdZArS/vD4vBscMmauL+Ki1JNeSMqlNdIa9FQCRtb81GvzmhG/clhM2/mUW2LdiYzoaUeS5EfYTTj9BBt1EJL8fBiksOklMoa47o0cRX/TLE4SvWA1Ob3kfrWChPwgh1rfeXcSjjY6bT870miDJhT2GhqLYoWPUAPYQAkLdUgfnz0wiX6teL8sbzYtiY3GOVlz73hiuDAa/3WB+5GfFob/Q2xGdwYIDfqaMP61QenBknlX4Hy31Skv+RKMB0Ekdlub4Fi0dgtHsDT1WJ8VHGxN5cI0a/ud0tFNZzGCFMpgX5RT7GyUT+W6fCPHkYjxK5sJvZzzmqXcdaonZFZlYZiX/zlfLjCrFOPdggRWWltf7IQlXHxRGWPf2D7eK4RqdanmQEyWpwi6dMsDCUIXsb3fVVvecIm/ucCk7frwtlhH/r/9ZigV6Un3a3WD8V+4d0ZmdKvHmr0BqoRaZMrF8js9xflFSbhaZ/j0fvimr4TSDhjpGdBihLkNp7YnMKM2te7SAJItfdPfDklHxcpoSYpUddzZZMv7TD1pbnT0xRzbPy7L+fkOvUdqE6fFeXTXrff7w8kMptllfqDl/djL/zfsn4d+fkB3rJFOP/Q344w2Uxwwm6LTG/iWliNfCjmycuQY72Wur59xoB8NsJ3Cm+5zj2N2cOUKaQ8Wq6HqMIVD88+qJxUftKSfctd0edcASI6/a79DxKIzN9uCyN1kawZjN23htJZCZUrxYY3lpBgEGmEGsD/gzJgqX+aY9uxylGcUycCnl2IVeh1EjMu/EICh8ebT997dbsR8h4L1dpVDhFyvyK42iNGpVldMioYWL8b46V7JYq4HpHTaY5JoUrTLsavHX4or//x7BrzZmEgTsv7C59glwiITyitc+5RaUEOqBPi5EoBuZ5bM1HStqXq6n3LR17YjeS1oJCxL7exnCs5OiJ5Mcu19KwEd1cdQkZxD80QN5HeooCrzNBYP7pARk0dBk7/gIKYtayyBwbop2wfp1Q0k1Pua2nX7/wLbwS4lyq9lUeUncesV2qxA6IMFsRayZu/Fu0IuZPlnLxB3JaP6CH9eJ7U25NRLj4C73ZBvwNiBpN/y+BbYDQQqabIh3lPwMy7xqZkKx3pkWyuhFejR7khl/RkoBggHf+spd5tAU8wpT9/9jp0jZYsXSlr1f/1AApRiliCLRW9kEoQe2vLmp5FQS/q4lIEla6vGPPHbCE7LasYL/GYGNLjwVEU2VeYnBO5pJMndKq9z61c1yA1HE1pJ5KzAu7WNl5l5guSYX0hcvBYD5p597mJTGs63uIf1m7TiBqb6Rm5LfON0xdGaJxrlBI45DSIEGpGVzurBWaiR7aIMyKn/v5pKhgRqPeck+WMWoZEhdLTNSB6+pRJvzO3BroEYzHBsolljsCWxss00lLp9r6ITj5WvdbfOOQm3PXne+sUTrEnQJSckD6tsA5RSUD3GU5rPdLmTATNTZXquhwrVJbdNhJLztV6xz6boOx1b11NbS2udWs7lfKkzI5Z7QO361HnzrLXmofynSEq39A6VGsjtuE6PEVhVXPsHE9OXt0a4Z8Fad3Vhq3ew257hewn85d4TGbkquzJrXEAh7hNaLEcCEFtxi7RCc3DeuLsquVeK9flJ1qc5hgM0wfW+vYl1FoIfPd+WsUSeRmbeujGVxJJ+lBoUoFT1akAqkp5E18R0v6sEs+NBOI9MOG/PWjKYQWc/WPibMt4EcSqTG29b7RQOYd5NC0EaQR5PPAa2r91/p6FWmH/fdgpABWB2VI3woVnfvRQd3CgAAFUJ0mLUVf4O6winI/TGecnT4zXwow3rToevQpH4wx6DCELeYHWGvobc1sJVz0rkpYksT/+Gv1a736c75i3uO/zGX/8f3rHoC7NNgy6L5A4ipNWeyhPX011d7dj1Ku+sY5D7qYZPtnRXhnf06rate3FEiUdIAx9EPpq65bDvIFZ2TvfFVEbV4EWKFgxZ20XrJFlqKISzZgpfZnFX5SzH+j5usJ0RAxd4F8btP3z2lztR9Owf/gy3CRulcymYeoC3jnIEDD34SlMmxiBZ/OYLXSZ6PZN5DCDzenuE9EfAdO/+cMELFLt1q+VNudnA7PYyoD0RnRzjDAThIGCD7G0+Hf8ObriXDTE33KXKlfKiIJr7uNJAmNzh5k6lSVDFoob0+TOYPAaygTWTG3DQ2jvgzHGPL/HgBTGvIdTQkbjw8NfXXhHmhM1gAvVnViem+bApbJFLdSnpYFA3xN7yTtpdiTA/66n1Z+n0vg//QpsBY5RfIvSQ0tNTa7/In6LWOr26PhB0Sqhm+he2s8/mIHwyFd49qJQnmlAAAAA=</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRvoUAABXRUJQVlA4IO4UAAAQTQCdASqrAKsAPlUkj0UjoiEUil6EOAVEs4Q4AMpDXvJ6Hz8wfZ9Me4A53hmt+ab5J7g8iaIp3l/yPXH/Y9//zE1F/XP+Z36O3PoC+4v2j/j/3712ftfND+L/znsBflZ7Ef8rwtfxX+89gX+ef33/s/4v3kv8r/4f6/0GfVf/o/0PwG/rp/0/XO/+3uP/cf//+7L+0H//R3Wudb/YZOgk6AnW6DVQ/ZnFbsVOpPjDzs7bZK3e6vdAuV/wp4/1tWsHu7i02lLnlnufBr8NfkVxUtfa5tIr5U7ZtXRIHa0fT3uSAKG6f5xQJaN/o8sy8T+VmPSP5cC+S0HekHkbVNKBDIyrOt/9cSeGgkNvOTLFktjsQG0odCjm2nMfH/Fdwi1fgiLjcPkjlfkSE9qIgTWenmpYmjj/wc+wP4JEkGX//7ODA7C0EQkqEMRHVCMos9N3p/ojGICGKc7Rb2P/NEh20bywvHu64TOvSgX+z+W2aADsNIhfKKrG03iTjsq5+5i8Wx9GciuJdcP2JcVSuzq4zNszyfgnYcIOvlzT42Y36yIAH0dRDTqQratUWrm61cAaTgMxF+NECRPuTQb5rqy9DVbNCnpT5R4sMqOihAYBQMRytuU7fP3z3tCSTwzpZqtnXn4yJ87+ox7Xj0nx7oX2SSWAu5F9y82lu4v7pmBYLs8bQvkmiVXHdsgj/WMW1NdLFDGLbfpIdy1V9+9txhoMZ2NCN5Kdq+Bq/J48EB1t02mzLUCU+rKN2M2+FCR9Z2WHNxKfa75D/4RuOb7dm8D9ApIabBYTjJs+IF6qejX8rc5a2W1M9rm0+TusKXDhuHPgAP7dMARKUoAABMlUn1eWZWX97PKO3xUivJgZKv2VM5AX95NrA6iimE4LarTPMvt31JJLOs9gE1e+c2YkA592t/B1PwK5IPYiqKxjv4B2Y7j/Tswbw1MYTfZQoxL+gPZlNB/rPBOK7nLPMDov2xjuniNyZ/0As/hbvpUaf8GFB7XhxA3B4nK2Xl8+cMZ/mSz/y1+f0379QWfZDLloa7LW1DZDKz1sF/+d0eXSd4G8HSadE6oGYVVEd5rBZm909Nmd03Pdyo7auvoSnhdH+8sf5hh/h7M9Bq7leRFPD2v6jhqIhwRWlrf9NPf/Fnfq//i4/u2z/4KOPlOFeSDcDEqi8vchriMuJiOWiVzIUuyg/F92eJzQc9HjRrLZdQR4WAitvtwmgWdS8eFcQp7h5wROAfsvBt1S9S+/sUq6zP/cBEVQILn7IsR8PgG3yw/9G3obdirkX1JUf+Qa/wYcoruGSuLPvpc/AtFgHzcsLzL2+FBvBUGNr3XlIqSAjvtrLKY61WpbBOVN5noWbtN5K/sQDk5X5KCMnjYcJ7l9UEx/GK6geEwMb3pfzj6PTUz0dcPhnfK/DF4ekt4dExtUltzVN7b/Mf4w3B6X/n/8N6tL36BpMphIfzd9zn19d5hUJs/ok19y6oJCsT0dT/nten6MdZbD92yEvTt//QqbWuefCbjuK7FIE6CSMSEGmi1QGkHpO/cU1pdL61S1wSKN2ncfKmksD1nlu57xydofC7ts5U8bNws0Q94yMzAkkRsdYGHK69H2USjZU5RLUq3Wx1/R6XlVQEO9GOqIEBcO0T94aWL0dMao7jDU55Dc/1yFzD/uwlOhOdfD7ZwcDg1uz8Sn1fITXeptMGQqtSdRRtIIwzfTIa8lPCN2uEgwXTZHCRqaIC7N5Dku7w69yiFuon4WUxZWIzNjI69cSHPwfbB6DL98AJLoiaXj3hgRc7eqPrIJDVZFqTinsUVLG3wq05nrHOnA7AhB77OeVpo21SViPQddsXDodihxcKA90kwo/KBarjXsRQqKrXV7aiWyZO59iYlFzvTi9TRIw7Adv4KRwzqNhaM9jNxgjiVO5pdpDqIrqyFK/GGypHYhdFG2cLz08a7BUgokpGZyN+GgGasaztGH0vAnCzmRdLkjHa9Y/ZPC5FYr786fcKzKxT+/E0ltZ7XetP/Mx/V2yMpcob/NMJ5c0kQtQ5YpeEoatjgRYCbnCyjpe4AEiPv9uzfikVyP1Xw95Ly245m/tyuV+Vmsk/gAf27R55oO+Yp53Z/FjceysLyZNI3u1X8jRMYT+uADKx0H16vCxIaJ3sWzFPOokaRDxFfeh9IBHTQ0m2obZWQmno+xfRR0WlQIIhtyft1onCHaZqYjl23KgnwQHY9MQm24oy6dk1vMTaYhreH2x9Xi7JRdOB9YM6bALKWWgPT2lJos83IKOtLru3HHibvfArquMVoqIOs4r4fsTSHCJzylWm2GtqpDjYz5xzZDBsfQbihxkOCdBAtZAoXtiNlXzQmw/sGwY3bDIfAHkzPliNAWLVh5z2cZovJUPTcMEs4w0EF9z3tWzR5UKfb6lbLgQ37P9adNmqJecGD7W1hYtORDBFz5Y5g/0reEjRwSzDjUMFQBX1vBJwX2FLyFQxmcBNF7J+4PAXW7oetFOj5rtXTbCFSTiPYQiXRClPDoc10Y6zvskzet9LQXB7I6p86VEGjPDyp9D/Gnx0KcyeICE4E+teb1fZ+LfJV7H7/PdVDWfr+fA5LMDujfpdfprn3ncO6XSnKovGMr72bI5xbVvWd0fG+49M3XGkQh3UYS/8x8nQjD7qPjAYhZbQIMRsaFQyOnuJrTcvrGddbdqNHn/g84ekP5O5QdbTRNha/MWOlnk6XuHTz+xRS2bvxHtbEb+rRJPXLH16YJ8Z1+UzLdr3mHXD+2SdXAPl2VJtwC5JVyvIYMP7KAwvo5SAXe9WCE563rfw9ucRG3PODvN/CmJbReX52ZO3PUS7LRqqVhHghMG738eZx8dNdXrxH66Z5LnVXNZnGR1+YZt+WcwnQ2/P/1tZliX21jH8woTWQlRFJmoQvGvnHIDMmkEYfLasqmqKAxmNZpUqTvajNeaaU763eb/oHD50go3MwIGV+ibk9DN26KuNatTyTjhoG+HaL99zKsRPIO0fjMuYUH+FbnG3ZsG+KH7b45MIPO/E+DJKLRhzHzVFzp1yKBDQaf1jJ716tdyaB83c1/6wOLrOFFArmW1g7G1jsM61isJZgGf1Fa9y3osqsDJ/CfEP8dszgizj3jqvics0Bb5thvENqsusG181x7QO1UThBVv0CN/f9BP1oI3o6W0qDuG3nPs62IJVzIROQ6i0dEIGm8mojJXg0kNU9RnUucTiosnRRRkP9uIRzqmlygrM3GToR1HZtgLRTVn++7f+4juZMw1wrmVwJXCxkiFQvLemqp/Ks3DBjt4Vd8G1tMxJN3BYzMbCZWV4iKjqh8KxKLh8QBYf+xMgiwcAjiuEOoRn84A9/1RwmNCVCKW1aYi0L/DdQtbCzX1+zBwcWOZbEWRJI3vZCDDm/g36F+u13EqTJwRATnGbK3xZ0tJNYzskK2kC4d/p8h9AMrX/QD4qWEZz39vwjEAncESq+E/I/I2kK6EUgzfajGd8OC5Ws/FaLwrh3lsybL3DTge87lLRUw3pkpe80r6Dn8sYGcaDHPm2sUb2w7poGWiI1wjq6BJTjBqHRRTGlLT3kDO69beoln8Vg2MBXgT3dWSE3kRhKphD5J3falB3Aj/hJVbYQ2SKmHTsqUW6QcRq44NLpmBQyMrEIKLslb28KamQAxJOlENo/LgUr5Frpa23AaczYNBMIft/tFV9lCi8+6jALvk19W17dEjCAdud21Z61VX5Qo6Qn3J/hzDikBTqCS5t8VAu/1Aw8C53BRQvpYwGPdYY60gknGpUPp70k33k82WZLJX5VvC0gIsfVB72fpc3Ol+JpvgykT2190g0oHknCBxF09EM00w9u6UrBjGHqCjb+UK8jIgmHQ9jN//vgPyclz+ilkdIXp83Bsk7K9BQI6XURfX2d2bfMOfvIvsTIEtO6OEUZVzH0z7pzZ05dwJWm/yvFav8kFVMHeweGa5fU5tZiz9Om81y+au2pcXZqwS7p8Q0fEr4o/zRSPUZsMha93kNNfZpp1r2tY1a8rrUz8Tks3nVDpcbo3VmnA3gzU87ldhmky9haSQGS+CDf8cBt7+KBttKNKdM/bcWr2o5q3fkS6D9bAjiYvy4RU/+SdUlWrYurywbUV0oO+wYW8nhEh31IVlJK+s0QUZCjYU2Q7KSsNF9RHnP6gvvua7rJr3xjeVfUUWle75V8MKdpxOvyowT7wdhy6nvAsRZLelY6/agKeV7f3V2xrSEMr06dArr2MMSWj6R/2aTBcuPy1bZj7PgrR2RKH6mkrLqWFcBYv01AbOOguidrs2B5jj5DtL2oicTLkVlAS61GqBc/Y/pp3gOmY/Pp6V7PtWIzqWr8nnDXcczgoUM7R73uJ5GyALEuHJugYmhVZWbJ8TG4DHpnRz9Lpce1fwy6s1oI0qupcnD3u1aGcXSUJ8LEUJxVm80ngW8YAqgH5CffMMWVGVPlemC4jcSeuA9h2xL5PezvEcDs46yiihaBeEOLqsr2UbykjR/lFKvhcklpbLz4X95O489cd4jAOxFY4vbIpHZQTRUIe91NAke8W1FkXY75URt9yZ5AZ6zRU56GF5rZWcompe+mFKGsu73dl7uUPgs2RO2jnMN7LaLhNAiQXTJf93uvKs1M+ZFYUvwtjKNfEeGp9UH+MrQPICt/1tyIlslAb4sKDfmQpWKvncFprD6qmoBRCLzDTRZtWfIu7jW1Gbk7npvj/269vev2S+Uxd3tL2dFet0Eew2RWAJJJrxLvvWxMA38r4po8BquARsXaeDaWkFN2NbdT3pFSZ2IzP0vrMc/ccgW5NCrw1yghPLwICAuF2POPwXNTgBejbPmdf+D6eUf6GR7bwcBjkDFmz+Db8gRdBK3zG/NVskKk6WBvkSTj6zK9A5YMt9YBTcq2Q77m2gqkVfZ/GEvHnaytaOTLwJ0UiDvg6ubwDZQhcJ6WP7A/JLQQ0jdaUTbd5ThXy2aTS3MWOvonDmRqlUnPx+phD+Jtx5gQuqr576aVXkaaNkkIqNP+T8Px3uB0Q/0oMdk7XW7Z4DhKrLBDwVTCJeEGSIQKgyboSMrBURTmD9olyfct/m8YCklwRZE/lN7JdleR4i3GOHNCFOJOrFZ8hyJx5xZBCKQeSSOmrzMInpf8nJq+cRPPpJ0sMDU3dOKm69/z58x1kEq1Wpm15CI+ndnnDhn7c1ljisXEkBjbXxhO3wE+0pcY2sGv+nVRkblFEm2Z4ftWgXv6wT7pCOhzcgOv/C8nE12dBAnjBdbaGic8XxBCbo/x71pQJaixqBqZVRRq+5s7sgBoTuk1V4rv24/0r6mZEBZ8vSUHT9ahHqi00fLgBVCo63NzAXEmMad3ASNs5tdnD6CxRi2+6JxCE5Pk7gruPpMjhkYf4tic5sFH8vSatmyDDn0M9GwSiWu/Cf7gdpMydzDNLEumj45pYU5/pc+IRyUBYkFvdqHaDxx+ktqrC9zICdkYL2lFo3pevotSd2wFeRNA/MoElD2N8NwH/3eQcAvbkMSNwuG8Og+79j1JY6Q238QZknRvkC0GlV0zNScyRZIpkot2jbeSK7dg/gBUNXkKTHs9b20ORnZYNSL0zg45iPtU9g8Z7nkF6ycZCJo27rtuoZd8OLxtUXgLZkJ4yJaYbozXEbjoodTG8/4FqtX0QSr1UlC6tYiHfOe4YK7LfsDP+tiuGRBybcMUQ3KrNaP04NuGqd+H79PHHMR/lIDRLwHrz5nU8tKmIRCpTJy1CaraVc2YpBE5hFmpDAdzOqRak6r1SDWDKty4hTUnsc9gCr9QmdiM72cGnnPdigTuUrGjScZQUsRPFNubszwPWncyfUB5HfydTFnD1f5BqWjnD91ZbrCS383tneaTebtpzM+43ZVYJiT/jKzAPelvqCEW2hj6RmTv3MJNbawVIcJicxhuDyLjr39HZ1aMmwOVy7VeTMa/oA5kLMaOklVaXKvfUnm6T9FzdE99o6aus2kOZ6Ll3gj+F73gJX2dVDK0GoX+eAEeYQQDxvTGohDVFpe9fcpJGQgn+bPzZ+bURtl5/k/e0M66NkrF9yEk+8eaMwpDvLQBuendGfG3mXgU+s9l7vNyliAVxFHa5aN8A1kpjpltAJkmraQuLJvFfRT5w2FziOCzOJ4cZqgNCNA+svR4Bkq2znjxyrq48AlRwOkGmbPN+3k2R41jx/crvvUy3jfxecehuSzybDKe6NXMrbCSoaO0qC1vb1DhiAy4ABQBVp2RWR4xJSQg7lgNMsR7pgENRchh7AEPgeb8VDUcz1CAA+kI6G4aokHsOf81cLYUtl8L0jAaiRWguyLpMGbNobblNHaRf1iBFvyqlorPRKqTDqcuAoh2w2wDIXehlpdzktSgH7zqGC4XEFgP8ZBUxDm33MCZyXDioGhNh2C8CnU60cIcrHjZB4l5Wv5vDFw+sGrvERR7agZiqPhxLI5adVkhwLGrHA87rPyaBSaDMSxYGuI3zY32tu66ZZ4mB4S4jMbTPSG7NM8RVZavafsPpZF8yvtyYxT2UgLoW5poATOqcSM3Ut0bWogcXL511QQhswaJPHpGTB6aFrY6xixjeQpoE5Cc0bjVvOBasn49htv+BCrzdkpzYTSCnPRhMDRCdixD2stV0gLrkwJ/IAERTg2wF78JqPGQQDZt6cO/qIyVzOsoNV/OOEupfg/LbdKTqlgB1vITdD6ruRXaP8IMzqBdNt0H2EVelprXNrWlopJz78FD/jtvVwRMCc9vH0mGuoHJSneaiRg/mom0FfTPJq51ATD+D27/EJny2bEek0I6ZAMZzAOe0uyxM7XUr+rYLGOE2bo2QhcAEeHaGGse18hciAlQNWz5ettLz5d+p6C1kggBn9DDIn60ScnFvh/tWYt1decxGwK3rN9E3ZgrZBKYzbdiySgi7OwxdMYgPRSLGGmIGeGh051hQ7gZWFBerorQ//ymiz2+3dHRarZgEbw9yaT2Qniuub7ZfydEwg5SS6CL6euuXuk6Hvx8abKXs32ztoJypyA4Yu/vxFXGqkbAB5PVjBt4lTE1socMHkL31iiWitmDqwbT9FRGQTPHipinw50hSJh2ZuTwVyVHL4XQgHnoqbILLff+VTCXbZeZ4dhqvvOhjH/ATtLORo32830RHegg7wlgrjlMG7ygAAAAAAAA=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIWFhUXGBgXGBYYGBcXFxoaGBgYFxgZFhkYHSggGBolHxgXIjEhJikrLi4uGh8zODMtNygtLisBCgoKDg0OFhAQGCsdHR03LS0uNy0tLS8tKy03LSsrLS0rKzc3Nys3KysrKystKzcrNy0tLSsrLy83Ky0tNystLf/AABEIANUA7QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcIAgH/xABMEAABAgQCBQkEBgULAwUAAAABAAIDBBEhEjEFB0FRYQYTIjJxgZGhsUJywdEUUnOSsvAjgrPD4SQlMzQ1Q1NiY6LCFoPxFVVkk+L/xAAZAQEBAQEBAQAAAAAAAAAAAAAAAQMCBAX/xAAgEQEAAwABBAMBAAAAAAAAAAAAAQIRAxIhMUEEIsFx/9oADAMBAAIRAxEAPwDuKIiAiIgIiICIiAiIgIiICIiAiIgIiICIsM3NMhMdEiODGNFXOJoABtKCByk5RS8jBMaZiYWiwGbnHc1ozK4vyg19R3Etk5ZkNux8XpvPHC0hrT3uUXW1p5s/FaxhLGBrSwvy6zw7EBdlbHuoabKmR5ARH4GyoEYloc+YJbzLKmwafrWO824oK6a1g6Yma/yuMAf8ICEAOBhgGnGqppnS064ViTUd3B0dzj3jFVdQkNUkOxmppz9payjW37amngtn0bq10UMobXni4vPmSpq48+fSYn1nfe/iskLSkwzqRorfdiPHoV6Xbq40bT+qM+435KBpDVxoqnSgsZ/s8wQmmOHSPLTSsEBzJyZwnLE50RvZSJUBbToPXlPwiBMMhTDdppzb/vM6P+1X2kdVcm68tMRIZyHSDm1OV3XPcVrc/q9jQiGxw2JCu36QyjTDOznBXoiopdVHa+RHLyV0kysEuZEHWhPoHDi0izhxHeAtqXmDkhFGj5xpbEbFHOsALbDDiGLpZEkGlqj0Xo7QOmoM3CEWC6oyc02c121rhsPkcxUILFERAREQEREBERAREQEREBERAREQEREBc713TD2ScHDkZhuJv1gIcQ08QD3Loi5zrvP8kgfb/uoiDz1PTBDyakiriCdmIlxa4dpKsNE6QcDVhLSbYmOPnQg0WSZgtdmFDdo1hvcdiDZTykmSQ50wS4Wq4lrreNRZTf8ArqLSkWBLRuL2mp720Wpw5N4yjvHb0h5r6GiXHOYb3w/kmDahy8hf+3Sv34/pVZYXLY/3UnKQ+OF7iO9xK1NuhXBrm89BOLCcRhkuGHF1TSwN60zoF+N0Q9uUwy26HXKu8cCmGtmiaYjRH43x24tlHk091gDadyrdMTzycUR7ola1MSrRXeDEJPhVQvoUbL6S/d0ehtpsWFuhWEguc5xNLk1PmgrHzZc+zu8Wa2tqgm7it75I6Qjwg8w3uhtLYbdxcGAgEjvVNJyMNps0Vvc3V3KnPu+KD0ciIgIiICIiAiIgIiICIiAiIgIiICIiAtB12NH/AKaXUqWRYZHCtWnycQt+Wg67ooGjCD7UWGB3Eu9GlBwL6QHcDuX0HfnuWOEwHMKdBkQdpHn6qjEz8+SzNPw+C/Ykm4ZEeBHxKixHRG7G+J+Sglk+nzX1v7/R6rfpb/qjxUqXL3eyPHt4cUE5pv3/APIIDl3epU2U0a52ZaPvHcdhapkTRTWi7j3AN8+t5oKZ0cNueK3XVVBZMumucYCGCDhBvTFz1fGg8FpE9CDch35nvJut21MzrITpvHW4gUpfLnq+oVHcERFAREQEREBERAREQEREBERAREQEREBc616n+bm/bs/C9dFXOtev9nN+3Z+GIg4NBcreUijb+fBVEPb3+isYIv3n8IVE+LEG8Ksm1mpb9VviarDHhi9h4BEQNqtdHKCYbb9EZblMgwm36I6tRYZ3RW0SUZrc3NHaQPVfU7PQ6UBxbqD45eaq4cICtBTosO7NxBWWM0V/X/dlQVU68urag8TlXs9VtOrRoBmLf4X7xatHy/P1B/BbfqvF5n/tbj/iqjvCIigIiICIiAiIgIvmI8NBcTQAEk8BcrSpHl/AmIzmwIzXQwGlrqFpNRXpNeA4CtRXgg3dFqXKHlzDlMAfAivxCxYWYcX1buxA7clqGkdaHOgubBwBhrhLiXEbbCgPqNnEOuItQ5Ocu5WOGNMXC5ws14c0gj2XOIw13Xutnl56E8lrIrHEZhrmuI7QCgkIiICIiAuea9P7NH28P0euhrn2vEfzYftoXqQg4Gzb3+hVjAz7z+EKuZt7/Qqwg5959AqPs9U+434rFMbVldkfcZ8bLDMbURidt935qZCyd7nzUJ233fmpkLJ3ufNFWwPW92H+NZI+Z98/szVYx7Xuw/xrJHzPv/uyoKiYy8PwD+K3LVWBWZr/AKX71abHy/P1At11Ti8zav8AQ/vVR3JERQEREBERAX45wAqTQC5K/VzPXZyrbBlTJw3/AKaPQPAN2ws3Yt2Lq02gu3IKrWLrQlosGLKSuKJjGF0cHCwCorg2vypWgF8yuaSTQC18Mlrm1uDQ3zyVIFJlopaahBdxYjnGriSSSTW9zma7V9sgs2uPc2vqQkpEDwrCBL7gFUQ+ah0/vDwo0fEr4kYkSBFbFgudDe27XDP5HdTI1K2KXoBeECeB+axmSc84nUG5oyA+JQda5DcrGz0KjqNjsA5xgyO57P8AKfI23E7OuBSbokrFZMQuvDNabHN9pjuBHwOxd00bOsjwmRoZqx7Q4dhFaHioqSiIgLQNeH9lu+1hfiW/rQdd/wDZb/tYX4kHAGbe/wBCrCCb97vQKuZ8/irGDn970CoyOyPus+N1gj7VIdkfdZ8Vgj+0gwnb7vzUyFk73PmoTtvu/NTYeTvs/mgtR7Xuw/x3WSPmffP7Mr5Hte7D/GskzmftD+zKgpo+Xh+ALetUDbzX/Z/erRo4t4fgC3zU9nNdkD96qO1Ii1nldyyl5Nrm86zn6dGHd1OL6dUUvciuVbqDZkXnbTPL+biElk/G4CGyEwD7pr41X3oXlvOsGMzUzEIFw50HD2UewnwNUHcuUmmGysu+MS2rRYOIFTUDbnStaLlmkeWMWM3FD0gRQhxDG83YmmEDG0uFTvJsuZaX5Sxo8QuiRHRnkNBe5rDWwNOrQAEmwptVO+QjsDTzbwH3bSh40sbGmxB03R/KKdEQiJNxwMZuXGlR0sP9Ja2zctY5czUAxTMBzokZ76vDi7C6gDbkEEWpkfCy1lstFNjb3nfAVPksglQABEfUA1DWtJF87mm4Ij8hvByFOF7cL3UliR+bthaR+dy+YcPgqJss4tNQtk0dpFlOk4DtWsQoI3DwX7pEsZgaKA0LjszNGg9wr+sg3gaYgN9qvYPmvr/qGFsY8+AVnMco9EshQ4TY0IFjpeC97QTihw8EV7wWipqQ5tc6qJH5e6MdDYIhdFdzxiPHNud0YkVzntaXUGINEMV2ioBQYDpxp/uj94fJTuT+sGLI/oHQWvg1LmjEWvAcSTR1wRWtqbc1DdrQkocUvhS7zQQ24hDhQ8Qa5zndGvRrVoG2gK0af04I7w9rSCDUk02ngg9N8mOUcGehc7BqKHC5rqBzTSt6EinEK4XmLRHKGNLu52BEMN22mTuD25OHavQHIrlAJ6ThzGHC41a9oyD2EtdTgaVHAhRV6tQ1syYiaKma+w1sQdrHtd6AjvW3rWtZP9lzn2LkHmVnz9CrGDt/W9Aq+GFPhE7t/mqJDsj2M+KjzHtLK54vnk0eFam3ao8eKL33oMT/AGvdHxU+EOt9n81WuiC9xcWU6BFHSoc2UHbdBeAdb3If4xdfc3TEff8A3ZosDIgNaA3awC21rqkLNHJNSB7WIfdwkWt5qCojZeH4WrqOouWa6FMxCASXw2fdZi/5lcrnGnafzSi63qH/AKrMfb/u2Ko+Nb2sN0mPokqf5Q5tXvArzbXZBv8AqHPgL7QuGyM697al5L+dc9zjUk1a0XJzJoVP1hzT4ukpqI0momIja/Zu5pv+1gVe5xJLjSpuaAAV2mgUVscjAMfEIeBuFpcXPIaAB8brPGnI0S8d1WMHRYKNAtQHogHurc5qlkYl1axaOYW1zCqPqUgQw6vNwyaVOMFwFSQLVFTY524K0lZGG0FxhspUEllYb21IoWlppQfVIWtc+W0Djh2Yt3G9iPRZm6Wa0gYy8gtIYCOtUYcgA7MG9hnssFjNcmYpmeaaMRIMQxHmjcNadKgrwoLkrVuUUqYMYsJYciCwktINwRiFQtg0xylfDiMc4Ne513tza1rS0sZxycT2lalyg0v9IjGIGhgyawVIaBk0V2AKK/GRbqylYjQC53VAqQMzuA7TQLX2vU+LFoxo33PZkPiqI0V73Ekk32AkAdg3LHzROZUiHDLvzb+KHCMgXkeA+AUGJkJu/wAKn0UuCyFtr913yX7DlorxUANbWldgPEmgyuvoy7y4BhDzQ2aW1sK7cznxNFNhclYS0tCd1aH87lLZJsu0UqRTvzCqJUu2jbtF/JWUu69TX5dqqNg0POSUCCC5uOMa1sHEGpaLuGFgIple+2wXR9RMT+SzLRWgmSQCa0DoUO3l6rjMZobFDqWdfv2/PvXZ9SQpCm6Zc839kxUdKVJy2YXaPmwGhx5iIcJyNGk0PgrtU/LGMGSE245CXjfs3KDzCyWpDZEDmkOJBAPSaRscOy6mwAqiGy+471bxdKRIpGMtc5ow16rrb9hPggzRQKZKumGhW2kZyC4NMOC+Gb4r428KEEn8+FNMRhv8QR6qiMBdWUi0KNLQ4TmPc6Nhc27W4SQ61gXV6JJ7du5ZpKM3f4X9FBskmwKTMZKDKTFrNcf1SPN1AvqdmjTJre04iO5tvNBVT+1dY1DQ3fRJh56ro9G/qw2VPDPyXIJ1u0nFW+4dwXZdRcYGRit2tjur+syGQqOFaTiY5qM760aK770Rx+K+4kttHgsU5DwzERv1Yr2/deR8FZS+aCBBspf0qm0eKsYkMUJIBVayZMMnCxhvXpMa7zNwpMznZaxWZ+04xumS+wFey/opMhoKKekIWAfWf0B538Ah5RxwLYB2Np8VVz+no77GIe5Z7yT4iIemK/GjzaZ/kZ+pOneZgtcA7nIzxhr7LWnPCOOVT3AXWqBZ5w9IrCF1WJjzOsuW8Wn6xkQkykHE4Dz3DMnuCluFSXGw2cAMh4LJouD0XO39EervKniscy/pBuwfm66ZM8tBx5mgt0ciRx+SlwZWxAYK1ttGVLNNb52vmNywy4BItdW0GlBuOR3Hd+c9qTBqqbo4N768Li3is7JbMUpah3jaXAK2EGuy+0bxvH54FS2aNAFXuwtsWnaRtoKVcNm7O6qKUQzt2gZGlQMsJJ61svyMxDjc3qdm0/Vb2bRntvkrb6ZDZXBDGeKrjQBwyIAPR2e0dhWCJyna3OJDF60Aqa77A0KCsfdlNxq07K7gdu+vBdk1FmsvNH/Xb+xhrk0XTcJ3WLNoBwvbnnQ0tvW26vOWjZJxYWh0CIQXYaF7HUw4wRdwoBUEbLbjB3hRNLyDY8CLAd1YsN8M9j2ltfNZZSZZFY2JDcHscKtcDUEcFmRXkMwXMe5jxR7HOY4bnNJa4eIKsNHyYdfFerjSxs2pJIqCLCu3Ytx11cm/o82JqG0iFMXefZEYZ9mIUPEhy0OFG3gH18VJF9F0Y4UxUpXpHqkCt6c5hrtX1pPRsm6phxJhgJBHRMYAEXBLKioNq1UBum4gFojxlmQ4Wy61cqqFN6Ue4ULqjFju3bUuOW8uNxfcQs7VvPt1ExHpXz74sPFCgRYr4cQMMQc25gLmF2EEEXpWoPFbbybkpYwobo2LGW1fjMZrQ6r7EsIoLQ+4uNa0C1ePPF/WDDet2VHgSpcjM0cHAtFMOTAB0cVLb+kfLcpNb2jNxdrDdpmTgmKPo+HBhYOsX9PD0qCpdc1X5P6DJhl7nhrRap6I2bTcZj2VUy2lXAdd+TRQYQOiKN2bAsM1PF16VO9xLj4ldxW2ZrnYV05kOxd01P6J5jRzHEdKO50Y9ho1n+1rT3rjvJnQrp6bhwBUtJBiEezDF3muwkWHEhelZeC1jWsYAGtAa0DIACgA7lojytyvlub0lNt/+TFI7HRC8eTgv2VU3WQ0/wDq03a3PD9nDUGWUFjF6qqIzVcAVCrJhl1UV0cWVY7PvVnM5KsiKKhzPWPavlq+5kdIrGEG2QoYZAb7oP3ume8WHYVR4CXXzzPqVezsQFgHGncRD/iquTbUlx2n+Jp308VUZ5e2XWzHnUKfAif/AKb8VBdfOtNtes0jO2wElWEu4wxzjgMVcLK0oXUBxEZUYKHtLdgKC5hRGwW0d0olLNdcMBuMY2upTomwFC7cqbSOmi5xDavfW7ibD3jtO7y3Kun5x3UBOI3c43Irn+sfGtb0WbRkqaAAXOQFz/54/BBjdLF14ry7hkO5oy/NlNlxg/o2UpeuXeQKDyWab5qAP0j+nsaMx2/JVc3yncScEMNBFO6taUHzQWUQxRm1o7WNH/FRHuANSyh+s23pbyUeDymjYqnCc9lM6V9B4K1g6ShxR+kZhNM2gXP5sidUeG1avOXb5J4hxCYks81cPaYT7baZ8Rt4HPvsrMMiMbEY4OY4BzXA1BBuCCvIsw0wzibltC69qR5U1Jk3Oqx1XwqnquF3sHA3dTeDvR06zPyMONDdCisbEhuFHNcKgryppaXEKYjwgKBkWIwZ5Ne5o8gF6zXmXWRo18DScw1wIER5jMOxzYhxVHYS5vcoKAwnbAT5+ihxgVbQsj3eoXzM/JBXy8uww4j3RmtewtDIRa4uiYjchwGFuHO6yywKBo8x6FWcoM/dr5FB9wYTqZGnZTzKxxzTjl5qxflX/Ifh8lXRITnvaxjS5ziGtaLkkmgAQegNWmi4cGQgPZDa18WG2JEcB0nFwqMRzNAbDILalC0JJ8zLwYRzhw2MPa1oB9FNQeZ9ZJ/nSc+2b+yhKpllb61TTS82KZvhEf8A0Qa+ip5cqi3Z1Sq2cCnwjZV8y5EVcyFWxlaTCrYgUVDmRke7wWEKY5uxRC2hQXDZirB3HvsPgmj+rtNzYGlqNJ9FXwX2opMqcxnntps+CotJZtSNuXBrw0Yi3e516KRpZ4a5w9mC3AKZEg9Iin1nknsovzQ8Uc4HEi3SqRnhdiq0ez1aHvUOIahtdrnPI4MAoPvOKIwyMsSanOtT27u7JT56cEJtfa9kcd/cvuBDwinj2rX9LR8cU7m9Ed2fmgwucXnE85/mymy2jw8HDWo7V9aGlYbzEMQkBjKim/ZXgrjk86B0i7ouaAW3zNgR37Qsr8nT61Zr21QCXLTQi4WwaFlg40IqFO5WQIbIcEtHSdQnjZQ9DRw0rbhvvd8z58Wis4zaVkTCcWG4IDmngdh4ggjw3qv5K6TdKzjHg9V7Xi9OqQSOwiyvNKTYe+DbEQXNpvBoaeS1SftMZUubblbxkvT8Tknk4a2t5eyGuqKjIqr5RcnZedh83MQw8C7XZPYd7HC4PkdtVK0STzEKufNsr90KWuHqcc0tqgjMqZWO2I36sWrHD9ZoId4NWqz/ACD0k0mslEIrm10N4N8xheT4hejUQeWXclJ8VBkZqtv7mIfrbQKK50fyP0g4mklGu2gxAQ/2hFF6NRBxyR1ZzkWnOuhwW4aGp5x439FvR/3LfeS/IeVkjzjWmJG/xX0LhWxDBkwZ5X3krZkQEREHnTXXCw6WcadaHBd5Fn/BazAXU9ePJaI8ifhjE1kMMjDa1rHOc19Nrem6u6xyrTlcFBYMdZQ5kqQDZRIxVRDihQntU94Vryf5GTk8HulobXNYQ1xc9rKEiozubcEGrliwRoJNwMl1KW1L6Rd1nyzB773HwEP4q0ltRkb25+G3fhgud5mIFFcSYs0I0N8l3J2oSFT+vPxb+abh8A6vmtQ5San5+XJMICZh74fXHvQzf7uJBp8s8g55jvNqd21fjX3YNmH1i1+GxfsaTiwDgjMdDdsDgWk8KOoQosR1HA9o8wfgg2KUc2jyQK0NK0zO6u1aXGPSPafVbfoqKK0Js4U7a7MttwtZ0tLFkVwO+vz81UY4MTcabP8AyskOMGGoufLvUNFBaT2lYkYtxmuAYW8As8tGoqdpUmHFXVYxhzU6mwaMiY4za5MBcfh6HxUCFDMaYoLuc6g4ucaAeJUh8PmYNXdd96XFAcqbCKW/JWzak9AmZ0g2I4fo4H6Vx2VB/RjtxX7GlLTstOOnRWIelIMPC0NGQAHgKL7RFy0EREBERAREQEREArlPL/VliLpmRaMRqXy4oA45l0Gtg7e2wOyhserIg8sGoJa4EObZzXAhzTuc0irT2qHEK9PaZ5Nyk1QzEtDikWDnNGMdjx0h3Fa67VNomtforuwR5in7RB5+DV2fUNAIgTL6dF0VrRxLWX/EPNbJK6s9FQ8pJh990SJ+0cVtEtLshtDIbGsY0UDWgNaBuAFggyoiICIiD8cK2K4Lre1bmBinJNlYJNYkJo/oj9ZoH92do9k8D0e9oQg8d6Pj1Fjdt+7h2KfNyrY8MXo8ee6nbuy7LLp2snVO7E6b0azpVxRJYUAO90HjvZ4blyfG5pNi1zSQ5pq1zXDMUN2ngVRSTMm9hILctouP4KOtlOkAWhppbaRR3ZXcvgx2b2+SIpJeUe8gNaTVX0nIQ4DREiEOccmg9xqfZK+IWky0nm6kkUsK2Pp2qO2TjR3tYAXOcaBjaucTuAFyexFYmtiTMVsOG0uc5wa1o2kmgA3XK9TavOSbdHSjYVjFd04rxtfTIf5Wiw7ztWp6q9WX0NzZqZ/pgDghWIZUUxPIzfQkUFhU5nLqagIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAqPlDyQkp28xLtc+lBEFWRAN2NtHU4E0X4iDmHKvU/ChNMSFNOwV6kSGHnue1zfMFczhaDY6IGVpU0rT4VREHUOTGpyFEaIkWaeWn2IcMMPe5znegXT+T3JaUkhSXgtYSKF56UQ9r3XpwyREFyiIgIiICIiAiIgIiICIiD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTExMVFRUXFhgYGBUVFRcYGBoYFxgXGBYXGBcYHSggGhslGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFxAPFy0lHSUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABQYDBAIHCAH/xABMEAACAQIDBAUHBwkFBwUAAAABAgADEQQhMQUSQVEGImFxgQcTMnKRobEjM1KywdHwFDRCYnOCkrPhFSQlY8I1Q4Oiw9LxF0RTZJP/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIFBP/EAB4RAQEAAgEFAQAAAAAAAAAAAAABAhExAxIhQWEE/9oADAMBAAIRAxEAPwDvGIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiY69ZUUs7BVGrMQAO8mRFXpZgly8+p9UM3vUEQJuJCJ0twZ/31u9XHvIkphMZTqrvU3V15owYe6BniIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAlJ6edPFwR8zSUVMQRc39CmDoWtmSeC5ZZkjK90dwBc/jwnnTa+Edy+KZwRUxFRbkkneFRgL5aGwtb3CBo9K+kuLxlRDXqkKq2AUEUwd5rtYaNYqLnlPuzKDABziOr2MhHtN58bBsOKf8A6IPcSDMT7MY5mlvdoTe94vAbXxlznigByDL7OrNbYe1cTh6vncNXemdGcjqldSCHFm7DbLnM1LBneCrTIY6KFsT3C0y4jZ9UKS9NguhJU21trpa517RAvewunGPqUnqNiVCKQN58MxFurvHfprlYNfQ9oGV+Nfp29WpSak2LYhhv0lYKjAHPrKoYX7rW9soGAqVKHzbXS99x81NuDDMMMrWIOUsdPpkUVgMFR6wIJR/N5HkAsC6YbpotRitKrU3kTezYlWI1szeGg7ZkwflFNF1GKamabNbfUPv0wV3g7ncVXTgSoBF+Oduqau1q7AgU0GeTM5LDX9JVBLZ+lrlbTKaNfzj2FWoX5Jc7v71yTbLxifS8vReG6dbNfTF0hlfrkp9cDnJTDbYw1T5uvRf1aiH4GeaGJJLG1zqQoUeCqAAOwCfN2B6mBieX8PialP0HdPUYr9UyTw3SrHp6OLr/AL1Qv9e8D0bE6Gw3lG2kmtdX9emn+kAyUw3lYxg9OjQbuDqfrG0DuWJQejPlRw+IUmqjUmDbo3Q1RWFgd4MFHEkWtwl9U3F4H2IiAiIgImLE4hKal3ZUUasxAA7yZq4fbWGf0MRSbuqKfdeBvxPisDob90+wEREBERAh+llSouFqvTYKyozBjp1Re3iARftnn/aq1qdwoapRLB9wGxVhxGvwnfPTzFebwGIa9iabKP3hY+4mdRYT5SsKVwvV3mZtAL2FgMycuwQKdiNoqT1lqp3qG+0TjQpeea1NhkLneV1sOZIBHvvLx0jo06DUU6jtUbdKBrsANXt9Ec+WfK8XikA30SykgG40uL5MeGTCxOWRgR2HBQhd+u17Zh2RD2WU394m/j3UZedub3IsrlT2GsHvyzMicJjqtJd04Ko1SxHnKYLA5ZEEAi/cZHVa1Y3Woy4emdVZruRyCel7h3yiQ2n0ixeGC0yadSkyncYh0y0YFUdQrDsHGRa9IEOtD+CqR7N5G+M26+PNZkpoWRWIVM7MR1ru1uBY6fqmam28MaAAZ1djorU0Ygc7sDYSCRw2LoONaifuo/8AqWbdH8ntk6HmXWsGP8BYe6RfQnGJSxdOo9gilid5Sw9FgMlz1IzGY14TsHFY3AVamHNV6bdd98FnqLmnyfnKzU0cpvgXVt61zmBAqxo0j6LIe6uq+6sqmchs4nNQ7D9RUqD2o5k5htk0qvmfP08MtV8SqCnh6iWqUGUl3K0HIXc1DZXtYgzV2r0fwlOg+IBrMgrrTCb6LUpk73nKVVHpnrruZNcBg4PDMImrgivpHd9ZKo/0W98wPRIF7qR2Op9wN/dJXbOzEw1MVKWMqbtUK2HVQd50KjeZ7MPN2a66G5HfIB9s1Rk1W/7QK/1wYGYzHh8M+IOQZaPF7Eb/AGL+r28fj9G02t1kpN3pufyis4N0gRf0LH/LrMn19+BN7O24+FrL5rDXCW3WqIxS/Oy8uHb4W7E2V5TazkK+FDMSfm2YZDjazDMZ2vedSU+k1P8A+wOy9OsP+bc+E2aXSOkM/P2P69Blt40bwO7v/ULDr87Sr0z2qDrpxv7pA9KOmzVwKeFZqVO289U3Rudr6qo4nj3a9dvt8VAN6tRqW0BrMltOFfuGnKcMS9WqoCLdOIpMKoZuBZkvkOA5555WCUxnTnFlHopXfzbC2+xJqHmQxN0B0trble00cL0nxtP0cVXHYajMPYxImPC7SxOHG6pKDk9NTbu31NtZoVahYkm1zyVVHsUAQJPaHSTF17eervUAtYNYLlod1QBftteZ8FgsTVTfSkrLnnvopsMibM34seRkERPg1vx5wLQqY2lkKNdbZdS7a5j0cpyp9L8Yn+/rLr6V7ZGx1vocpXqePqqLLVqKLWsHYZctZsUNuYlEFNarBVvYALlvCxsbXF7QLXhfKTiqSs71hVCjJGpqCx4C6gG3bO1+jO2FxeFpYhV3fOLcqTfdYEhlvxswIvPNdWoqLvNpoF4seQ7NLnhftE7e8hm1POYSrSNr06u8ANAlUXAA5by1IHZMRECieVdy1KjQBtvuzH1VXdsfGoPZOssRhloUaJqNvNmht6SkG1wQblSADw8eHYPlOBavSUarSJFu1j/2zq7GbaqLdXUNwueX45CUSVKnRRjYoGOps28eV2Iz9sjNpFkrecQb6sOtuEMQRkDZTfS2nKa39sUibsjfxfblOa4yidGYaZn4ZAyDVxtak1iWbMgEGwIvfOzLfhxmjtDaQW1IKjU6d7B0W+9mN4lQN42PGSOJoUW64qac9PZx75XMTQUMbNeBsYerUQjEGzFTYb2dyVIHgBy5CR+JrtUYu5ux1JnKrUNt253dbXyvztMMosPRvZT1lcoB1Bc3Yg6ZAAazlu9p9t/jeauynYC6sV524zcAkGMoeftAPwtHWAtcWyyzAy058zMkILsBcC/OBkxe0q9RVWq7uqeiGcsFGmW9oMh7JH1q50W2fEi/sElqlI6JTuPp1BYA81pk69rX7hpOeB2fSBu7Ens3ftMDjsnYbtZ2orUyuPO1N0dlkHCW/Dpiaajcw+BUcgHv4kGYcHUpKOqreIH2GfMVjstPcZRp7Zr4mxFbB0yOJRvsdB8ZTMdSok+i1I8mFh4cJZcRtA5hWIB4AkD3TE9fzgIdEYkABt3dta/BbA37eQ7pBUK2AcC4FxzEwUwb5W8bfbLxhNgP6VFtw/RYb1M968O8TV2xshanVan+T4m19y96VYDU030v+qc++BBYfaNROqtWoluCuyj4ibf9r1+L73rqje9gZBOhBsciJmo1uBgWPZuIxFd/N06NOo26W03Aqr6TswZVVRxZspuYzD16al6mEbcAU+dpVAaRD33CHs4N906HK2dpodHdtU6K16VVXNPEIiO1MgVFCOHG7vCxBtYg2uCM8s5XpJ0kw+JwlLDURUoph3O5Tc74qq4F3ZhbdqBt82taz5GBC4jaiBd4K2trEj4gZ+yZNjYg4iqKYAS/H0vdl8ZD4r5v977DJLoR+cLKNTH1C1Rrn0WKjsCkgATszyE4sri3p8Hw5Y96Ou6fY7e2dcJhxUrut7Dzjcjqx7dJ2t5JujtTD7QZyyMn5O9ipN+s9Ow3WAPA5i47b5SDuSIiB1/0+H96p/sf9bffOrNtYO7tbmeB+z8ZTtjp6n95pHnTI/5v6yg7Vw4ufxpx4wKNVwZvp4cbXPGaOKwJP6Wl+dvD+l5bXw4ByHI6X0mo2EHL3H2C0CqNg6g/S95nyqhFr5mWOtQA+PID7zpIXaSWOloEfWmOZKsxwJfZh6s3pHbNOU2lrO7blFd5udrgQJLD0UFmqtug6LfNvAZ27pL4KkH9AJTX6TkJ8M/eJXKmzPN9atU6x4XuT9p8JwbCu+YQ24M5sD3Eyi60tm4H/ebTw4PJAhPcSXMx4mhg1HyW0KLnkwT4BxKQ+z2+kvsMxNgT9JfY0CyVtohDmlKp+snVPhr8ZypbYotkHameVTMfxEn6wlTbDOOF/VN/hPlOoQefYZBa8SvEgesv28fjM+zKlPeAfq/rcPHl+OUj9g0EqncSp5uodEbNT3LfP90gzcx+BqUWC1k3CfRYZo+X6LaE5eibHI8NQvuAwIAGljoRoZw2/gaVSkUqKCPeDwIPA9sqOxtvVMOd03emdUOduZUnQ9n33EjtrbalLq1wRl9xgdZ7WpFajKTex1OpHb2zRm7tSrvOTNKFbWHqzaKg8JGKbTfovcQjhilG54iSPQ6mGxChgCORzHsMj8X6HiJI9DPzhYHPBFPyiqr5KzMm8LAr19VvlfL3zu7yY7MZadA6rTRgagJKsTcWUn4DIbtuU6Ex3ztT9o31jPQPkOP+Fp+2rfXJ+2Bf4iIFF6fm2IodtN/rLKZtGnmcs9eB09+UuflCX5fDn9Wp8UlSx6dnh9p4wICrT1yPsOduduE161LXLS+ZFh7Ldk3aqg39vD2kgzVqplw78jpKNPc5Xy+Pwlb24LPaWfj2dw+HDWVbbT3qmQRleYplr6zPsjBeeqqnDVidAq5sSeAtqeAueECR2JsqpVsoyB1PIff8ARzEtaUlp/IYVQXHp1DovfzPZw7TlONaoaYWjRyqVOOhVOLG2h17usRktpMYHCrTQIoyHHmeLH8Ze+WDTw+wlUeda7nes1Rs2vqbLwtw48sr257RwtBVa7b7A3G62ZBC9UkAqLEkk53sANctnHYxaVNiz7qnUX1tz9spWP221QkIN0Sifr7RwoL/AN3uGKG1lXd3TmqEE7oI1527ctCvtai6MDRRW82qqyU09Kw32bMEG4yK6bxuGsLVXEM2pJPbNY1e2QW0UsG1EHfZKwCgizFCd7M2AJ9E52I0FhwPHaXR90TfO667gYsDYi5CndvmwDMo3tOsDobyrpimHGb+F2kd0pvEKxuVBO6SNLroeEAEK69ZeY9IW4y8bE6Tg0vM4wCvh2y86Rdl5ectmQPpjrLxvqNXD1aOL6rDcqk2Q3JFibm1hbdA3rIcwFABJbKAxFJqFRtwhgCQyg5NbK45GBMbawAoPYNv0X9B73Ivorka9j8dDn6UdWpEgrextfsPbNatjrU+qb0jfqn9E8QBwHZwnPZGL84NwnrrmpPEf00PMSCvV6ZBIIsQcxMJEs22MFvDzgFiMmH45fCRH5IYEeZnwzz5WokZTHSOcDbxXoeIkj0O/OEkZiPQ8RJLof8AnCwMGN+dqftH+sZ6M8kFBV2Vh90W3vOM2erGo4J9wnnPHfOVf2jfWaej/JJ/snDd1T+a8C4REQKP5Q7+dw1vo1fjTlTxo/Gv/keyW3yifOYXuq/9KVTaFuzt0+6BXa7Z5n4fG5zzHsmqxPj7fb90z4l7dg7zx5ADPhNBmOn39uvDOUfKlbM8Nb31/wDMqOKe7k9ssmJqWDG/Du8Bc2tKuxz8ZBr1znLR0MoAI9Q6s24PVSzOR4lB3EyrVdZY8NU3MGADa6EZfSqu2ffutT9ggTex6m+z1z+mbL2INPbl4hucmmxaopY6ASv4CrZFHYPfnNHpRtAimEB9LX8d15oRm19qtiKlyeqPRHYOP3e2beAwihQ7rvEj5Olci/69QjMJyAzbmozMNs9QWUEXBOY5jlOztjYOnSotia+emQAuSclRRpcmwHADkBIKXiNj16hu/goFlUclUZAd3jNCvsdl4S77QxxYXYAXzFMego4XH6bdre69pXMdc5sxPIX+Ek88PJl+zGZakVupQtMRFpu117/bea7S6enHKZTbYwWNKmxzEk3qgjKV4i028JX4GGmeo26SR6J1H2zBTYqwKmxBuDM7ZzWXI25fj+kguFOstRFqAZON1hybTP3r25cJr4fCCYMD1Rb9CoLj1gPtW38M39m1CfOWFyql7aejkc++w8YEVtfBAbp7be3L7pXCLHxlkxhqsrFje3WOVrWN7D8cJXapux74Gat6HjJPoh+cL3yLq+h4iSnRD84WBgxw+VqdrufYzCejfJCf8Jw3/F/m1J50x3zj+tU+u89E+R0/4Th++r/OqQLpERAo/lIHXwv/ABf+nKltJ+d7fjlLd5S1zwx7anvCfdKRtV8vwdOyUV7HHPW3M3PiBnI2o4tr+M887n4TYx1TM/0+HP4SNqVLcbZ/+M5B8xVTqk8LG2ecgL5yUxL3B+HGRQgYausl2qfJKP2XuVPukRV1m5TqXQdhX3ED4CBP0q2QkJt+rdx2f0m7TqZDukbtbUH8cJR92MflBLrtraVzRpXyVTUI/WY7inwUVB+9KFg6m6wMldo4m7q3NLfwsT/qkY6stwukviMXcmY61iVHZ8AMvaZCnFTbwmNF1JG9uHNb23l4i/DhnNanDmYdG9262K2EU9XLe5aXsBf4yCxFPda0slHadFn36h6yrurc6DgLeMr+Pqh3y0v9t5iW8OnhNNRhOCm0zunV3v1re681zK2kkNxMVcZg+H4903tgUFqMitvEFt2y+lmLKBkeNuBjbeGVGYIHC5FfOAhrEA3zAy3r2NhcWlEvsel5zBVCPSotvfujrH3b4nzZFT5dQdGyPceHum55OiDUr0jpUpXt3HdP8yRGzQBUp75sLrvHkLgMfZeQH2n/AHKlR3BvDf36mrMblQCTpZVAA7z3VtNZJVGvTB7XPtJMjqQgZq3oeMk+iP5wsjK/o+Ikn0S+fWBhxx+Ub1n+u89E+Ro/4TQ9at/OqTzxi/nH9ap9d56F8jB/wmh69b+c8C8REQKT5TDlh/Xf4Cdabbr2P2afHQdk7J8qYYU8O4GQqkH95Db6pnU+28UN7iOwk/AffAi8RV7c9OPjawvxEj3c/i/xtrMtaoO32nP+nGalQ5cPZ7+MDFVqZH8fblNGbFQ93umqTnA4VdZzoHIicas4o1jAlMM9x+PxznHamHYXDKysM7MCD4g56GY8FXKOGU2IIZTyIN/jb2mWjpDht+jSxILMGJRmbdBLG7DqqBY387oCOqMzeBSEM2y+8tuIzH2j2TXr0t1rT6rQHnIFQjMT44vmJxHb90JqMpxF9QPh8IRichx0A+JnKnSQ6sw7lB/1TZpV0p+gDf6TEEjuAyB7bk92sm1kcMeNxVp8Rdm9Y2y8AB7TNGcqjFj3zktOWLU10dQgq3+YtvA9mfEST6bW84wF+qiC5YsTo1zfQ9bMDK9+cydHdnX80tr3beIva45XGYuqX8Zi6ZHrMNzdbqggkEludwTe9xnc314y+kfehtTcrq3Oiw+ofsmtR3blmF1ALEcwN5iMuYWfXfzLDspke8f9swbTulMIDm1kta9wB1vfceMgi6uVFR3D7T8JrUxM2Oe5CjRRbx4zEggcq/oyS6JfPrI2v6Mkeih+XWB8xfzr+tU+u89BeRX/AGTR9et/Neee8cflG9Z/rtO8vIDXZsBWUkkJiXCjkDTpOQP3mY+JgdmREQNbaOBp1qbUqi7yMLEe8EHgQbEHsnTXS7yZY5GZ8Nu4mmdF3lSqB2hrI/fcd07uiB5K2nsrFUCRWw1elbi9JgPB7bp8DIsVQdG989kyMx/R3B1vnsLQqevSRj7SIHkd2mAmen8X5LNkVMzhAv7OpVQexGA900h5HNkXv5qoezz9S3xvA874DZ9bE1Vo0KbVKrZKijPvPAKOJOQnf3QryQ4PDIr4tFxVcjMOL0V/VWmcm9Zr35DSXXYHRvCYJdzC0EpA6kC7N6zm7N4mSsDz15Yehn5LifyiioWhXOQUWWnVA6yWGisBvD98cBK30e2yKaVKbUVqb+oJ3TcBl6xAuy9a9r6gET01tzZFLF0HoVluji3aCM1ZTwYEAg8xPN3SvotXwlYow+UXMECy1U4Ot+PAi+Ry5GBD4nBh17eBkK6lTYiT+ExIYdvEcp8xdBXGevOUQJHKfCZsVsEy6Z901yTxEg+Xn0AmfQZlSB9p0rd8l9hbKNVxe4XUkahfpd/AdvYDMuydjvUILDdXmwyt2Lq3w7Z2BsnZiqmQsgzLHViOJPu5D3S6Gvg6C0wXdSFI3QAMiPoDPSygd19NZU8WPPYtFysGNR7aZG9h2b1haWjpTtRKSGzG36KmxzHK36OenPvlRpOcPSes/wA7U0B1H0V8MyYGvjagfFED0VIvysmZ9py8ZH47G777w4XVPE5v4n4dk2Nm7IxdenUbD4etWzHnGpozWvmFyGp1IHC0j8dgK9H56jVpftKbp4dYCQZ1wC67+uQORuc7jtzHDnM/9lkMRvKFAvvNlqQB1Rc6sM9JEJVH4M26GNZW3gzBtL3zt3wOGKFgRyNstJv9Fvn175HV3uNZv9GPn174HDaB+Vfsd/rEz0L5FdlijsxHBJNd2rMDoDlTAHZamD4mdU9B+hL7RxlTeuuGp1G864uCTckUkP0iNT+iDfiJ6NwuGSmi06ahERQqqosAoFgAOQEDLERAREQEREBERAREQEh+lHR2jjaPm6mTDOnUW28jcxzHMHIiTEQPMHTLotXwdW1Vd1iepVW/m6tuIPBraqcxnqMzAri+DixnrPaWz6WIptSrU1qU21Vxcdh7CNQdROn+l/kZfN8A4ddfMVmsw9Sqde57etA6vJnEgHUA+E4bU2XicK+5XpVKLX0qKQD6raN3gmYFxR4iUbiUE+iJKbNpKXUAKlyBvWGV9CTqB2yDXGjl8fumVdpW0UmB2HRo0KS3apv1COFjYkXB3RloeJOeWWZGrtjpGiAbwz4IupJ5/YNe/Mykf2hVbQhB2a/jxm1sXBVKtTdw9GpiKvHcXe3b/Sb0UHeRGxt3LN+U4k2t6CcByJHPkOHfLV5P+g77TqjF4tWXBr83TNwa32hOZ46DiZYeifklJZa202VyLFcKhPm1P+Y36fqjLtYTtmmgUAAAACwAFgANABwEg19mbOo4emtKhTWnTW9kQWAubk95JvebJE+xAi8f0cwdb53C0Knr0kJ9pEgMb5LNkVP/AGioedN6lP3KwHulziB1djfIds9s6dbE0+zfRx/zJf3yLw/kOanVVk2hZQc/7uN63YfOWv228DO5YgaWx9l0sNSWjRXdRfaSTdmY8WJJJPMzdiICIiAiIgIiICIiAiIgIiICIiBixOGSopSoiup1V1DKe8HIyo7R8luyapv+TCmf8l3pj+BTu+6XOIHWVfyJbPPo1sUnc9M/GnOFHyIYEG7V8Uw5b1Ie8U52hECk7P8AJTsqkQThzVI/+ao7jxS+4fZLfgsHTpIEpU0poNERQqjuCi0zxAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERA//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRuAQAABXRUJQVlA4INQQAAAwRgCdASqrAKsAPkkgjUUioiETWpY8KASEtIBrz9yHSz8afOXzMe2fbf2IckfYBqO9lf7f11/2ffzwBfX/+Y8WXbWW39Av3C+lf7j+5/uZ7/n03/V9Gvsd7AH6nf8r2B8Cz0L9d/gF/mP94/7X+G/HL6iP8j/0ebP6c/9P+g+An+d/2f/p/4T2zvZP+4fsg/s0en53nBaBoGSuiAOV56BA8jsoj7c9+vYawg3BWtwyLbRCXVFFmvgAv3BI1rxP3HqycPEIKZyXRcUulqpmOvwKoyyfUawH8ATM+pC1MCE4DAC79ZRZ21lNIlssxo5dv+UPod7BjeohIkKQqENNkUAkf0VP8yUgV97+6HiD1ZRgLtVH+sOx9PeYVADfibnVmzQ21RYw2du429Gx6/Hd9AD7tzNBSaVK9YL4Y4qYKpn8FfpbZ+bpLHIC2FY4W23HON9ccUd1v+bvV6ILcgVA00ihALbcW8eu9iX1sB3iqZdmPtsdX6FodC/RXax5w+lhH9ZlQ4gzXeG0V85qg9AZSRAZwkeRU1a/66S581q9XBY8IGJ4waGHPQbkj9MQ0YwXZ7vleWi7N9JWf+RHuzJQfEE/+9VCC2X0S++m2PzGRU/mnDm5nEV7qnpKX15Fd+jxGzGrjrelBzIrbkT79ZBHbFrXFnDbpp9rl/E/EJ7q17IteQC4j14fKgMt6lcMdnhL9/1FUhul/Fq/958O29HP/PxDmT08nakG6EPaYGgZK9mL0QZK/VX53nBaBOAA/v3WgAAJ1AGdY9mrcWpq0kzuSf33XVTvaBbPIuFCQMrCkGHfQ3JIZUmSmH/9MGGL8ivAK1euTbyT7G8LjHgNVnoHzfrK/hiEpyIm3IP/uv8BClwhChnvjC4XpX8c8/oRa5B02n878a/eK0wWASArorjqul032hg5A8tvrXzf6brA2O2eP/+tAL8Gu1/l01ylXQXE+G9l/S2pGqtfGTFHESLfh/N8AYZb0X2tKQbVCbxEZ/BQf8YsepBTtRVCiOGHFbWRqws09zv6KVmhw8t8qfA5YMbq6yFtLtUeR8DMOJz2rZk06LEEzMHtPG0VZchDkEy4b6x2bKQR3CTAfwzPmNNcc2VxB0IIbUj169+epOfFAOz935vWsiAUQp6KlLNDUk8LKRj3ITu7skra6i06Zp4n+XpGTkauzv3iIKs1S5hChgIS30uKTzC5Fy9UjFUWMUO//jxp2hsanw3QjfnvLSzHj8XNimvq3ENfxafXo32BgloAtoEVx5DG3IUDjxCQZTqCLi/UH5Xs4yvAAhTk9rVgCRxgyDW/EMOr4Rjx8m4uAY1wBVpjxKKuJ9HMSIqU6wDy+umaqVG6vg2QS0RbPJrXQ7KT/79K4YF0qAntZTC/R7iD5rojX4T9x5reDHIpfdT5CCWGFaRuoJsMwAWsdUOOSNfDX0eTjRlZaiRshb9cQbUcZClt8n3Ih6fIoZ4XNpbmhdsK2YnwCz3xBvrM0q44JwNKheZq7qvIfGxYMuh+Y76oWgVpNEeYv24KNDIvYLyHJh90OHDB4DxY+Qfb58dBmVb4p/ocW4Ejj06Ll9Crk0FUTA7nxoM6+C9oagP/FEqjezAP82ETCjxg8DKeL/poP69uG174KIVtyktwFWdfEU4uNhent67fnvReVqPkUIs4bpTz3oDM/kyPRTzlm68WH9qtko3M75ir4y1D7ij8Kjm6hU/ZAiox3f7Vn/HXq3UIaNuTo+cfy1f3vWnHw1PFy4/bJDlxkz1z+PCCwWRHa27xQ1Wxd9PhSLLdRSHqXmRiuZ5rhPmSWyghO08FsqLshlNyFv+LBxZJSAcK9r8VLGO6/1pTYItaHvYG9w2Sct5vnn/DRUy64r7Drzd06W0Gq9WOS4MdGTjvN68rBbb/TCjJ+X2E4dcze94Vf7cCq3QAUWZzYO2ELJ+JzOiS44Or+CHkUa8z2MbEY7fO9f9S3WaOcSGaXmznq5jo9/ZOf2EZbqJiNV9Ue14EtGT8mXfYxSJJLjCfPaOWsCr2CRxbtJEkcVvZC+IC+vaFSmIFEmYdUoDEJ89nUhOF65mCoRU4zp2NyvVqZ2L8k84dL1c8ZDHuJQs/1QWMc+PUJS/U22BbhU6tIJ4rBe2PXHxLRj2hLdjIDM+3j0gYbzX7WTrcT/jLJ+6xMt7VeffEaSSt2uo8S2kM1aFE9OUCszpHsop8qADE52LPOCi1oQpF83K9Ce2trS5tPq7L9nQRqYmqTUIzL3nYiNoYhzxcqK+PjAYe8a4URQ/7TlSC4GkXWC87ANuZL4oMG2nRlNVdFuhog8eckbpKItKco5vQRlqOtyX400HnIMc0LXHIfaWDS390kFkY8uSawsFkeVoHnv50RtjlQLi+P4/UPumgW0blGoMNs/PdvFNJZlOmFge2K9HKVfF3eXhkrQZ+uP+FXIJb//f+0EvyUOoA6vs8iPgHNIXBIXSnZhD/fR5n787TOskEYJ8aMuzJWryJPECwScuvYumy/YHXi/zZHm5FBrBa0wGl3gKLWGqDBTXRMqIJ/7MS/EXroJj2QOKI+g/E/gV39Kz6NP0Ml1Lua/PYnguDVz2ixB/bBnF+KZ2PH507S9mkeVExaH/AAoOzHRBn4/aXnlDrBUUwPvYBD5sSsBrPbixoIKQl7oW7oqPleUbvmzo14rXjD8rmcY8/NIdUj2t37Vm/XCjdw96I+YVIGhE9wvsAtV1J+Qx29TQWucbQETMbokdPTVqfN1ORDOVqwwkOUN8RqdrGXJAzsw817xgez5DAqtStmP9CepBy2pzc1CgarlS8MLbDG9BxTRiliFtvEe2LBs5sFXiI3ZfptvzynaI9Dj40EdIarM9QpBLv4Q9tuc3oTNxYFmDfC0nFVEY3Qy2ht5ptM7wc79BuLNiNHlWVHh/t725MbALRZmM3m4tEDEuIIx7NpB1YS7WCYtEPu5VLZhcIE7lylmTgKLg+Oh7fyufhlFH8kGmxALHQZsdvXf5TVxa3iGlo9RVG/9K37r3WO/GRMCWlSBy39fJLxZ6+CwiulYS7pRLtzBPUp7kyXwPKbzWxiQuZVxE6GLQhDgrv9ZWAHLTcWx9kvMAAR3onu/SQ3uhzA6z4GtYobhSxqZ45lsgLfrqSl1DHsf9CNGzXFA4DTelqxjIOhsTSz5uD5F/0oD5Cnwfuor/QyqubjHUTk8R+94dF00NHXvS2ViZBa8lZGDOdAuAhYsqRwJd+We+CFDNA+/qXv3KhY/pkbDOrZaHrowNT5mc5Kq+/X7N5E8SrTcNHisgpMyYMs03gqlNtR7/JYPd/cNu14dy1PS8rePH7zD7PzmPwoayb2bHRKtsL9hz6VOpOuJxYgOPYuATCfErNF7pM2NtubyqN3RXWm4BPMiug7qVV0DYeZgAt0cLILAjNI7UbfrtFOqK8Wj7kkG0B+Kt7fqyLcX/R9gSIJMyb8/Y3ANCwlcIp/pLkgDE++bBbGqnnM2wz03tlytVfec98qtjlXXwTi3yOCfDIaUV/8NdiT9yCxgXNaQ0wrBqasDW+WaP+3CHgJykKnLhNicEC4c3HbrTbFBvPMI8FA7LSrzx1wly5zWQYxaZNw5FKGslKdpmRxvuukewTVo1uUrzwYDUjE0x1Arg1x93uQrH2QNnfpDEwxvKvNTvOiZ+KBC2H3tfOfmSFfUj/xHYDCQJhfuBqlEBNrl3l1vYzLAk0cnNny8u2GA67zNTE6v8rtStKjbhbwZ5aqxsKRqS3DoQJwtuj7QQFJZOkW86vn1DEyUzQMgYl0DYX6YYcJxrntET8P/qwVun3WKKaPAfbJFrQnCNmWdU2mS7y2N1ZC8VeL4o6GQ/BMb4V1qGYS2/g90gqCLG7QmYkXgWzOZiQ01/AX7n9PuMPiCWT2lIo3Ct/YQvRN4NnFAPcpY+lHAXQOb2DTZt8U0YtPrkuixADaLacTBJOYOIxUfDRqGKyYWKLOPgpOZ/PeU5M8MFZnbtG34m/dUW84jMw+U3o4ApbBPmrm6IeYK7g6LkFZhb/QApArYeCb5ukZ46WJDD+Iq8TzoS9X9ivFUrrKTg4VamawjKE2qHE9JXF64GzBwroENVNsJi6z25zESi267unAN3xtKYB+cST6bymJqeswCXe8n9ceHmNVKswfCO0MOQ3y/60PF6kIU1vYcLciKYTAgE2s29uHCUF00raN1CqFX8mn4b0I+TDCkVNC05I82TUjAUDQzMgbaba3jeRszMqlXY5EeoQ2gwjUf1fHzhfu0U2m2vxlLIaRWB6XbLMVW01xoahLlfiz4fMlw3WO4qZFRDeusQAv8t8ZfYhGjiPrJBvU9Dpju4/1pU/m8wKbbnKbyWwkmB/fnvRy8vhPV0lsQkuy/KxyLuUBA+JGx3AMUCGjCAp7cEdcDSr5tX+q5aNlw3eN1mFt/L3T0S6HXeIZPOBNLku9MjQT0Y5bmCBWAFBFIkR7BMdzuBf3Gs1K0YXBcSPn4JKfklNg6ABxxn6wl0NwgJsTV29kkSL5fdE3VS5ou9EUZ2VIepTeldEOlnvnzgKDl6HqSm8pSSoJchyU16sPyWkcoZuj+kW6pYiTdCQceb//K4rl6/Ndjp8nxAagJzaUao6RHIfpFpd5NR1e6fL85DHCFnhjcFUJ6if7se1+2GVyQk6fVOKGBUIuCqQ7MyiqcbyaP73bPPPRoy9gxQ2dgd9fjVZV513P4yruhQrF682h1MkXminga3+bcS0hWSpnnnf7FsXCTvXqPv1GCvFosHzpggHVaVmSJY/E5crW5JG9JosPoPSKh6rVJLSBcL1T1D3kvqlxmI/BqqR3dnlgU93YE2CYV9Dfii1JbDhHdIbwHLfBrzuK0wQ9AaF3HFQVebbW4oJLMU2MmK3/aEmmBN/RhpvRVpuA3OjeTFlx769qqC91plsxyxL4N+JHhlqW3bGZ1sWydU7LlI3b6vrM84EqaHTCYvlBX4IqIJBg5goA9jd/nrO296F5xTVpqUEudpa7y6id1RZYyknH9T30IF7O7t9fAV2U39+uivhJTRp+xgXDm//3xo/3cbvjv75BeAlw1n8+yTuvdpMhzP632mmTOgHcSazEMJdJR8hy03YoCiynP2j0blYM+ZrTeY7bw++GF4YkKD30BiIAsoYSJsb3EPomPB7mVHYOacBhWt9HWgEn1Lutdao3giSMTGFni/qEXS629KAM48UB6TMH3Tb2dFY+3hlTzmVHJKd7bHgNMgaMcXi4Wyq06CzsoBBJdW3IftIdZWmU3d9hBoSCP0SyyhWuoFUM5hqS56NC/26gXe+/qb/ExGlriSlPg+lu6s7s+ci8YprXcqan8zVRPdoBCPIjzWsds2mj1l1n4qZFxO4HD5nE82aoWwgGOOxRZZyW8FL9PMSD/BHLIyxlsMtn8A76l9MY7iYe9r6UOOSdA36tGIITAjjn9G5icelJ3GU12Pj9MCw5yA4Tqb/tCv5PX39Xtu0o54St038+7EOjoNSlQCMlxf1oHS6rqdKOaOmwOZbu4pplaIj49m61xvvfs7ArtepxQ0aoTzmKqlw/BWBHu9UdLzUTutceGr9VEmPgDoVUN8+hu4+UO93+zr4N4ZFsCC+njEFNFQal9ZAZsaxOyauC3VMDXFmGxQT4n3+60FwBeIwZihilvOvPSKPygA1t9Ggib4HrzQxq6lY1Gou1ZiI/4mt9Nvfwj1IZDtqX+0Ph5ZiXf3PZxJv+w6dgzifEzL2dQv43TzCgHP4ZALkrPBAOtHzeVbAAAAAAAA=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEBUREBIVEBUVFRYQFRUQFhYVFRUVFRUWFhUWFRUYHSkgGBolGxYWITEhJSkrLi4uFx8zODMtOCgtLisBCgoKDg0OGxAQGi0lHiMtLjcwMy8vLy0tNTEtLSs1LTAtLS0tLSstMC0vLS0wLS0vLSstLS0tLS0vLS0tLS0tLf/AABEIALwBDAMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAFAQMEBgACBwj/xABPEAABAwEEBAgHDQYFAwUAAAABAAIDEQQSITEFBkFREyJSYYGRobIHFBUycXLRFyMzNEJTdIKSk7Hh8BZUYqLB0yQ1c9Lxs8LiJUNEY6P/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQMEAgUG/8QAKBEBAAICAQMDBAIDAAAAAAAAAAECAxEEEiExEzJBIlFhkYHhBUJx/9oADAMBAAIRAxEAPwDuKxYuU+EzWd8r32KBxbEzizOacZHbY68gZHeajIYgf1i8J1isxLI71reMCIKXAdzpDh9m9RUq2+GS2H4GzQRf6hkm7RcVFtAAwCjFBcXeFnSh22cerC7+shWnuraU5cP3X5qnkJKILj7q2lOXD91+ahaV8Iuk52XDaOCG3xdvBOPMXjjDoIVaokIQPO0vazna7SfTPKf+5J5UtX71aPv5f9yZShh2A9ARMRM+DvlW1fvVo+/l/wByTyrav3q0ffy/7k3wZ3HqK1Qmsx5g+3TFrGVrtTfRaJh+DlY9H+E3SkLAzh2ygZOnYHvpuLsCfSannVUWpRC6+6zpTlw/dfms91nSnLh+6/NUglJVBePdZ0py4fuv/JZ7rOlOXD91/wCSotVgKC9DwsaUPy4fuh7UjvCvpT5yL7pvtVPeLjRvPYFGO87f1X0ILsfCvpX52MeiFqiyeEvS5/8AmFvqw2f+sZVUa0bU8yNu4ILF7o+l/wB+f91Zv7Sz3R9L/vz/ALqzf2kEZCzkjqT7LPHyG9SAp7o+l/35/wB1Zv7Sz3R9L/vz/urN/aUJlli5DepSWWKH5tvUEDvujaX/AH5/3Vm/tLPdG0v+/P8AurN/aTkej4PmmfZCkM0ZZ/mY/shBHi8JelhnbC71obP/AEjCL6O8MNvYffo4LQ3dddE8/XaSB9kphmibN8xH9kJu06s2d44oMR3xk0+yaj8PSg6tqj4QrJbyIwTBMf8A2paVdv4Nwwf6MDzK3LylpPRktmeLx21ZIyoBIx+q4Z06iV23wU66m2xmz2g1niFQ45yx5Xj/ABDAHfUHeg6AsWLEEDT1v4CyzTDNkbnNB2upxR0uoFwLSDrrMTUnEk5knMnnquyeEiSmj3jlPib/APo1x7q4rpx2xAEkdUrRKoGlrVcbQZu7BtKBye3xsNCancMUx5Wj/i6vzQVrScgT6BVbcA/kO+yUBjytH/F1fmk8qx/xdX5oV4pJ82/HLiOx7EvicvzUn2HexDQp5Uj/AIur81IZrC0AClaCmI3dKCeJS/NSfYd7FniMvzUn2Hexc3xReNWja/j8rLx7dWK2pn7Dn7RN5PYfaop0oz+LqHtQ3xGX5qT7DvYs8Sl+ak+w72JTFFPbCeRzc3I16t5trxsR8ps/i6vzWp0kzn6kLkic00c0tOdHAg9voK1oumcVOkWc/UljtbDtp6cO1C4onONGNLjnRoJPUFvLZpGirmPaN7muA6yE0C5KfsEd54rlmfQM0L0dNXiHHAlvRiR1frFHtCN4x9FOsgIGbW69Ia5NqDTc2tadNetQi+pqf1zJ1zuK87xXre32qLVBLiFU+xo50ywpxrkEljQpDAFEY5Otl6fQgnRgKTHRDmSHcpDJXbuooCcdOdSo6IXFONuHpUyN6AlHRSGlD45FKjegcttmbNG6N+RGe0HY4c4Kp2rmkH2K3xS5GOS68Da2t149FKq4RPVI1jwtUlN4P8rT+KD1Q01FRtxSofq9MX2OzvOboInH0mNpKIIKj4Tj/g2c87B/K8/0XGNOnFdl8KHxSP8A12dyRcZ05mgDIFpw++03NHaEdQHTfwv1W/ggLavNYIccC5xJ5wKgU7EScG04ta7csegqNq5Q2doPKcdlDxqGtR6EUkshNS0NO65zZkLFkn6penij6IMxyubgCW0rhU06lMgtL3YAioxxqLw21I5twUKKtQKEncd/oKLM0LfZfiljccQWONzEbGuOBx3kLiLTEr64bXidRuCxzPvnEEDCmRxzI2OGXWpTZ+dDHRujoJg5hxu3gRQDDiOHnbqZYDFEdDywulYy0EsY6jC8UGJHFJGOZFCeeuFF6nD5/T9OT9vJ5fC39VP0n6OsxleGk3Wk4upUAVpXrR6DQcLHtBk4Z4fQspQEZ9IVlg0cLoDWNbd4rbtPNqMDvRGzWFraG42u+grT05rZfk78MNcLzprZFLa7dIyGIuYyR8LKC62rfezx8B57XEDszqwzVS0Bl19la83q34pjwtOTSrmXc/kA8+xdB03o1lktsobeMbaSi8flSe+PAqeKKuPMtNE6SZw3vr21NHNu1243aAV/WK+b5nN5FL26axMR/wBe7w+Hivj3fcOa2YeK2hrgJYnDBzJg3BvrtpeGGPFCuWlXCSzyNOIdG7ukg/gm9fpb5ADQWXg4VFCCAQ4gZ45UU2XRY8V4r2tPAEljr1Wm475RFDgN9cV7P+M5E5Mc9Ua3DyeVhmsxbWu/z5crsJ99j9dveCtGg8z9XvBVawfCR+uzvBWnQeZ+r3gqnYd8h3qjvsUQnBSz5jvVHfYobskE0FbtKaBWwQPNPUnmOoopfQVKjulJzy3ICrbS0bepSIrS3eg8LtiMWXR18cV1Dz5dmSJ0lscCno33ecfghbmviddeKfhTeCp0UgIRAnFIpUb0JgfQ06lMjkQTYnqo6xH/ABEn1e41WSKRVjTp9/f0d0IPS2qP+X2X6PF/02ouhGqP+X2X6PF3Gougp/hQ+KR/SGdyRcZ05muzeFD4pH9IZ3JFxnTuaAMgOm/hfqt/BHkB038L9Vv4ILJq24izM4tRV4Ged44FF2AHFpoa7K0r6OtCdWpD4qwYUq+oPrHH9bkXgIIxG857+YYbc1gye6Xq4fZAZPb3PYXRxucWihc9t112jsaE5YE1POolkt0xwdVmAIAdUEEbvk/mE7rHa+CcSQZCTGY2nzGiNwc4uGbqkUwLfOOeFDdoN4RyFrGmSCGQhraBri0mgG6haOhdWx19PqXcfm3x5YrHj5/P5ZovTtsgZ7zOSBiY30c3YK4+jMIZpDWl73/4mCJ7XYFzI2seCcate2h35kjmKmEU4wdz/wDFPyUG1M4Rt1wGdRgBQ0pnv6Vzjtrz4U56zaZtHmVi91iRlxkETLrW3SZQ5z6gUacHAc5zUxvhdtBbdjbCZDtnHBxj0m9UnEYDdmqRYtVzMx0kUjWuaaXJAQHZZP303jZmg8NjcJ2RStMZqC4OBwHKwzHOF6G51vXZ5mo3r5XG2azPtsg4d4c5tI3ODAxpIqfNoOKC4AVxIGaS3SR3K0jbR2HBtIcaZ4ucfTUUyVYskR8ZdGSCTwjzcyLg40ulwGzDEBO2ieZzqOhlZsrwZ27tlexYcuPqv2ehgzdOPusjbcHzNDnta0UaXEi9ec4DiNOdNvMTtoiNrtckEczARR0bgciCCx1C127HMLn82kZrPdYyRzXhtJKGtS4kkOBwcQCACcsVaJNIiWzAUF9sJD+Ylt4AAYAcY4L0uDqkdH3eZzbWvfqUKw/CR+uzvBWnQmZ+r3gqtYfhI/XZ3grToTM/V7wVSQ4+Y71R32qG5TD5jvVHfYoZyQSU4f1+utNpybMej+pQRrQ7EN6VoXJJfP6Fq5S6g9E/FWXQ9pyB/NVyyPAzwUyO10OChGlt0tCJIjtc0XmntI6R/RALFLmE8zSWHQh9idj0IgXD8ipkb0MD1KjeglxvQDTB9+d0d0ItG9BtKH3x3R+AQem9Uf8AL7L9Hi7jUXQjVH/L7L9Hi7jUXQU/wofFI/pDO5IuM6czXZvCh8Uj+kM7ki4zp3NAGQHTfwv1W/gjyA6b+F+q38EFu1PgY6ysv0qHPOdCBeORrzIuLM3GhoAbtSA6uAwaKVvegHA7kK1NvCysLaglzmilAXEuNcdoFMziONswNhna4kXgcMBUYjmFCMKdO0rDk1Fp29LHM9MRH2BNLWONxvXXcG2hJJJNW48auA6Bjgt3uF/gnUrCI7O6lS28yJoNDuvHcpulW8HG54YaAcfjUvNqARSmGBONdq0sVmkDpiAXB8pkLm0NDIxjwc8cHDqTczjmURERliEV7A2uNdlcq+1RZWUHbXDaCijoDuu5kYU6thzyUe1WemFDXb0bu1VxK+e5nRbheeK8V1DjnxebfxkumzEAyRoe5zeK4mlLhrhQCuFXbflEppjaOGNOfb+GPP8A8JzTQdHBwjsQ66wVwo2+Deug+dgdm3BephzxbF6Ux/LyeThmt/Uj9KpZMZ2uDqODL1Ty61NRtzII9KNWnTUvmXLr38Vpa5t0HaRU1HTzYqs2snhHUqSCXVGNW9A7VL0fPffec6rmtFwbziW9NQ3rVV8dLe6O8GPNkx+2e0oVqheyVwlYWPBpddmNoJ34EGu2qKWUSRuN/J7XgnChq00y56IUWUIqCMNu7mUzh3EXc8COfJd1tqdk13Gg6w/CR+uzvBWnQmZ+r3gqvYfhY/Xb3grRoTM/V7wRyHHzHeqO+xQnZKafMd6o77FDdkgkp54qwHdgfw9nWmE9Z3gYHI/r9fkgh2luThsWtahTJYi00P8Ayob4SMW9SJhqMFu1yZL94otmmuWKJSWyKbYxQV3qJBDtd1Ka0o5SmuUmN6gtcnmOQSInodbzxz+tgUiJ6i2o8YoPT+qP+X2X6PF3GouhGqP+X2X6PF3Gougp/hQ+KR/67O5IuMaczXZ/Ch8Uj+kM7ki4xpzNAHQHTnwv1W/gjyA6c+F+q38EHUPB/FF4hZb7bzi+0UaA5xJDnjzRkKE1Po5ldYbJC7AXmuAFWlpaaHCoDhi3nAPTkuQaC1nFlscMcApJwrpZXEYto57QIycKuicQdgGIxJI6HYdb4Hwuknk4Ih9Y7jL7/NB80OdUb7xG7i4LJev1eGzHftECOs+hXyWOWGyxsMkjbo4Q0q1xF6h5V0kDnK5vq5pc2SWOR05tEJYYpojhwb6i6SPlEChGZpeGGCk60eEGeZlyH3hhHGunjHlVkGNOYU5y6qq+g9FiZzsHHg6PdcpXgiaPoCDkKkYbBvVmOvaYlxkndomJd3sscNphZKGAte2uIFRXeR+Iz2VwQfSmqJ86E1p8h2fQ7LejWr3i/izGWQBkTatuA1LScSCSa1rXs2KLrLrDHZQ2N7rj5A4BxBo3ncRgDltG0qiKRadQvte2P3fClNszYjflABaahpGRGNXDmOzmxVJ1n0/wxLGNFyuJ3kEEEc+FKolrbbn/AAd4m9ng0CnNQk9ZULQGp1rtrS6BnFFQHvIa0uGbQScegGm2i1RqkahktM5J3KvRytAIc28SQanMUJrQZGqIM04TG2A3+CaSQ1jqN4xq7DnOyu1TdYNVZbMGGRj2ggtJcMLwxwcDQ1B2VyKBR2fjZLqtomNq70nfdO0k1z33wxwbdGJBIIzqT09il6v2a+95qBcikeK41oKUpT+LsRdr7jLrBhQCtQQSBsR3R1na2ySvIbedHI2hpWgZSu8iuzmVF83xprx4Py5bYPhI/XZ3grToTM/V7wVWsHwkfrs7wVm0K+jjXdXqx/otLGgnzHeqO+xQjkiEkdL7doBH2SCe6oBQSFiRjqhKgfjmwuuxGw7R+v1uSOh2tN4JlKDTLBApG/tShZwhWXyg2C3Dk0CtgUEhpTrHKK0re/RA7G9NT5rVjktKkDfh1lB6j1SH+Asv0eL/AKbUWUPQ0HB2aGPkRRs+ywD+imIKf4UPikf+uzuSLjGnM12bwofFI/pDO5IuM6czQBkC038L9Vv4I6UC038L9Vv4IOs+CLQ1nFjZaSysznPF94BDA2QgBlcjgMaHHbsVJ1qaTpOWGNgN6YMjYygAL3Eho3Vc8n0uKKai61cBZGxubebGXuNDdIDnE4naM8CMUzoa0CfSUdpuVebU1zox8prycQKU4uJJNPk7yVRMTEzLRExMREIGldVbTEzhJoixoPnNIdSu+hNOlEtStWJJg+eyz8HNZy241zSQ6oNGuc3zWuoW5Fdf0jY43xPjeBdLXCriKN5ycKUP4Lnmoz/FdIuiJLY5Y3Dim8L0fHbiMxdDqesFXF5W+nGpkJh1kks9oe+JroTeIkgkHmvFL7C0HFuBIIO+lEP1l0ibex8kdb0bnvMZxvMkoSW77t1oA2XTtc0Gw+FAWYWiGWIt4aRhvhnGDmtIuOcNrsSMsQNzVRbFO1r3F83ASh7eDpGblS6hMj7xLWtG264kb1bWP9o+XOXLN6xW3x8/j+li1E1JntLq2pkkMUd2vDBzHPbgQyOoypt2ClObqesZnhsf/p7obMYqH34XYmRNBvDc3Zn17VRovCrKyKjrPHaJQS0yiQBldji1oN7oIB5lVbVrPJaZ2vtDTbHk+92cXmWdrh5lIozekIqcMzWhca0HOpmdy43ERqEu06WtelSYbS73qGrwLHFKWyOBLb/EY+oHGxpTHnQiDREDTwsM5eGk1YRSpGYq+445jJhpzK0aJ1lm4V/jNIhHHHZ4Xws4KOA3XFrKAHi12OqDcoaYUzWfTHDm7EX3HFkkrbzXsMgF0GI0qG0NSK0qSaA1J66vsjo35AYnOuiuZJI5h/yrKY5DZ3NMVPeXSMcTd4pYTeFRxsCcihWhNHm0WiOIVq9wbuo35R6BUrsum4gLJM0NFBBKKUBAAjdSg2fks9o6paa26YeX7D8JH67O8Ecscl1wKB2H4SP12d4IzRbnnpFrFH3htx6ef059JQ+eKhwyOXsPoU2/UUPQmSNhQRBzYJb5/QTroNx61rwB5kGnCH9BLfO/sW3AHmWcCd6DW+ebqWXzv7FvwJWCA70GnCH9BKJTzdS24A7ws4A7wgUSH9BKHb0ghPMthCdp6kG7SplmjrefyWmnpph1Z9Cas1nLjQYDaUbfAG2dwbuKD01AOK30D8FutY8h6AtkFO8KPxSP6QzuSLjOnM12bwo/FI/pDO5IuMaczQBygenG++g72jszRwqFpWyl7ajNuXONoQb6u2a/C81rcJdcrQmgBqcMBjnzEYLteqmgYBYoXtgEMj445XPFRI15aHVD3EkejLHKhIXniy2l8TrzDdORBAIIrW69hwcKjIiitDfCbpQUpaGigoPeYcvsqm2OZnsurkiIde1psNols5iGYJLZIxVrhQtuyxt4wqDmy9iMm5Ll9ta8Qhs3EmiJbdfxH8GfNJY6hp8nKlAN6hHwm6V/eG/cw/7FDtevVvlaWSyse00JBhhzGRDg2oI5io9OzqMsQnthfcnljETnBjWuBEcnELseCBNWkecQ3EUJwAqgVpLXgPJukkguOIJwGG8449eCix6TlabzXXTnUYY5gjcedK/SkpdeLhWt6ga0NrtN0CnYrIqqm0LDBqvauBY50MlwglnBMa9xdUH31t4Fgu1xoSMBQVTzZvEg8x2ij5GECKyl7HMdhQzue0ENxrdGZFOcVuTTVocCHzPeC0M47i7igABorkMBgo0dqeHX61NbxLuNU7zXNOlPVDotjscjbN43dMIcBH76BdkqbwYI3AiUYE1pQAE12ETU89K1q3syy9CE6W1zt1pLTPNfu1DQGMaBXPBoA2DqQ+DTMzHBzXCoNeM1pHSCKFVRimI1C6c8TO5d38HegDGzxqUEOkFGA5hh+VTn/D0o9rfa2QWC0yPIaBBIBU0q5zC1jRzlxA6Vw33UtK/vDfuIf9iC6f1ptltui1zulDTVraNYwHKtxgArSuJxSuGY8ubZth2jWVlZzOB6kaoomi7MWgvcKEigBzAOZU2i0M7WiwtrmtqLKIGrnOsulO0WUQNXSsulOELKIG7pS3St6LKINbpWXSnAEoCDQRnenWRjbisAW4QOsfsGARW0D/Dn0IPHmjFo+Ln0IPS7cglSNySoKd4Ufikf0hnckXGNOZrs/hR+KR/SGdyRcY03mgDpClSFAxNZWP8AOaDz5HrCZ8mRck/ad7VMWshoEEXybFyf5ne1J5Ni5J+072qxaWeyzvETIYnDgmPLpWue8udWpreoMtgUGbR72QumqxzWBpddkY4gONBUA1GP9UArybFyf5ne1Z5Ni5P8zvaj1us1nhkdC8zOcy7eMYjDSS0OwDjXbtUjRthiNosxFZI5mzOuygVBiFDeoaHE1HoQVnydFyf5ne1Z5Oi5Pa72qxtbJTGKwV5nR0/6qSSxxSSsY0sYRC+afgDfYCylBHUkVNTtwogrvk6Lk9rvak8nR8k/ad7UZssEMglkBlbHExrnAhhkc5ziABQ3QMAt7FZ7PNI2Jhna59Q0vEZaCGl2IBrsQA/J0fJPW72pyKyMbiGiu84/inmlKgSiSi2WIEosolWIEosolWIEotJWktIaaGmB504tZWVaQDdqKVGxAwYpODpeF/f0+xLPE8tAa4B2FTvwx7VjrMeCuXzXldNd+XSlnsxcwNDy2lMdpoKYoHwEoCWiUIMASrFiDePNF7R8XPoQhmaL2j4A+goPS7ckqRuSVBUvCcythB5M0Z66t/7lxTTea614ZbfJDYYrgHByWiOKaoqQ3jOYQfk8djcedcn0pxhVAFSFKVqUGLWQ4LZaSNqEFzj0LO5rb0sMlGgAywMe4CmAvHE9Khac0TMyzSF0kXBgB72Qwtjv0IpUtzROLWizBoBLsAB5h2BQdO6fgls0sbC4ue26KtIFajag2sui55o2SukgeXsa6stnY99C0EAupjQLW2aKtEQ8Z4dlYI5CxrYg1rW3SXBrRgK0zTujdY7OyCJji6rY2MNGk4taAcUmlNYoJIJY2l158b2Nq0jFzSBj6SgE6L1YdLCyRsjWhwqAWkkY0zrzKdDqzLFeeyZoJY5h4hNWuGIxPMt9B6fgis0cby4Oa26aNJFanapcus9mLSAXYgjzDtCALq1oqSSETRStY2QFjmPYHhwa4ijgcDkizNCTg1ZJBGcr0dnY1wrhgdigar6ZhgsrIpC4OberdaSMXEjHpRUa0WblO+wUFFYtlq0LZBixYsQYsSrECJVixBi1ljDmlpyIpgtliBh1jaY+DqadudVk9ka5oYa0bSlDjgKJ9bBBiVIlQYlCRKEG8eaN8HeY1m1zmt+0QP6oPZm1crbqxY+Gt9lhAr762V3qxe+Gvpu06UHflixYgFa0aDZbrJLZZTRsjaBwzY4EOY8c4cAehcP1q1fm0fI2GZ3ChzQ5krWlrX0oHC7U0cDsqcCDtXoNzwMyg+smjbNbIDBaKEHjNcDR7HDJ7DsI6jUg1BQebJRimlYNatU7RYnE4WiHZNFiKf8A2MzYesc6q/jI3oJCRR/GQk8aCGkgpFH8aCTxsb0NJKxRvGwk8bG9E6Slii+ON3pPHGoaS0ii+OBJ46ENJaxRPHWrPHQhpLWKJ46FnjrUNJixRPHRvWeONQ0lrFF8cbvWeON3oaSlijeON3rBbG70NJKUKN421Z421DSUlUUWpu9bC1DeiNJC2aFGFpbvT8E15wawF7jk1oLifQBiUNCFkaG4ldb8EegHNa63yihlbchBzEVQXP8ArECnM2vylXdS9Rmvc2bSLmtYDVtnBBL93DEYBv8ACMTtpiD1+O2xUoHAAYABBKWJps7TkQnAUAXTlllePezRUq36DtxyeV1BJRExLilp1d0jse7tQC3aiWp5JdG0k7btCekYr0SWDckMTdwRPU8yS+Dy08g9blGfqBauQe1eojA3khJ4szkhDbyu7US1cg9qadqRauQe1eqzY2ckJDYY+SENvKJ1LtXIPatDqdauQe1erzo+PkDqSHR0XIHUmjbycdULVyD2rU6pWrkHtXrE6Mi5A6kh0XDyB1IPJv7KWrkHtSfsrauQe1esvJUPIHUk8kw8gdSDyb+y1p5Du1J+y9p5Du1es/JMPICTyRDyAg8m/svaeQ7tWfsvaeQ7tXrLyRDyB1LPJEPICHZ5OGq9p5Du1L+y1q5Du1esBoiHkBL5Jh5AQeTxqrauQe1KNU7VyD2r1f5Kh5A6ko0XDyB1IPKI1StXIPathqfauQe1erRoyLkDqW3k2LkDqTQ8pjU21cg9qcbqVauQe1eqRo6LkDqW3iEfICaNvLLdRrVyD2p5modq5B7V6h8Sj5IWwsjOSENvMkWoFp+b66otYdULdH8GLm+6KV9NM16G8XbyQthC3cENuG2fVvSPKd2otZNX7eM3ldd4Mbgtro3IdSjaI0TamkX3FXOzsIaAU/RYiJl//9k=</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAAAhFBMVEX///9SUlJQUFBNTU1KSkpBQUE0NDRGRkYyMjLn5+csLCyurq5ra2s6OjorKytiYmImJiZbW1s4ODhYWFghISEODg7x8fFkZGRxcXEAAADBwcGqqqojIyN5eXnv7+8cHByTk5OHh4fY2NgXFxfKysqdnZ25ubmMjIzg4OCBgYGioqK1tbXLtaF4AAAIEklEQVR4nO2dCXPaOhCA0e0oyJcM5jA4YJLm+P//70mySUiJjdu+jqOtvk5JG2YYfbNr7Uo+mM0CgUAgEAgEAoFAIBAIBAKBQCAwMUvL1IP4Azb3juOTebl6c/l0KLP5aj4vs2S3Pfno+VRmLbsky/Th85t3B4bmq4wIIXAyT4RAh9M0w/x9doh0CPuCXi/f3ObCaDGCLITRUismsnu/AkkpY8Kh7AtFm4/3djGam998wFCicqXQ1iPHpVKKUYcyfwWjZHPatKw4MU6fICJRnOd5MvW4x7PkuaJaa4S0kBE3REWlEOPGXFCKrhCZynmkph73eJYyVyhx4FRGDqY1u1brwBTnecSnHvd49lIpPXfoKpaGKBda9AoiRBHzzjBbObIqjeNYRgoPGiJB8iiaetzjsYZJa5gUqVWMmKkfQ4YUKZ8M7+JPhsbRGH4xwXxSNHPS1OMejzXM2uMwaw25QINJatNUyqnHPZ67NFe6NDNpWaJ6pCFFfhnyHNuuVGvaxZDdNozjqcc9nrsq4hQ72Ojj0DvDri/Nz4b41nGIU58MiyhSzBFVraEit7KU+mZoVgt5nqs4NX9MW5NTiocEMVGpTzNNFbl+2ywYXL03hhEbrvgCxT4Z7qvojDO0jemNNBUsjf00rFyOGkMuhtLUhNC0dlOPezz71LhJR3E2jPKBIBKqUq8Ml87QHYB1GreqJk9RW0DEVWUkgtpFlkerp2VsBc0smsZ1URSVzBkR5l9VVZlVoDrvQp2hAlU2yj6t8ZU0gqkRqpqiruuUs8P9w4+DhS+airGLhCUME7sRwLmeety/AFXW0NLUdVNztXp/6zleNHXOOkkiGNUsjXiu2Op5whH/KprSnNuplNeLpmmUvtgo3KP1YlGYnkcpp8liaboDsfNrU/iBEtOlENN5p81i0dC7T+/eo8pKSm56HplyxYR+OE400t9lr7v5kvwo1ovmKjybF7stY1PTRHH+4OOJi3vaTpf0secE0/L5dNpsTqfT8e6Ld31g3nYw5GXqgfw1Tt3WtthPPZK/xgv4ID53QWS+zZLjeWwnG+zRGaVfZNntPbHrk9xQeOuCSD2sdiMp2yDSH1MP5K9xIuAnm5dznoJVfMa026TYvb4+Pj584nH7BqAb6CqGTrSqqtQsJpQh5zKtzKqxkJn/c9Ayc52NJrmMzEKi9SVUqDyyZ77Z6vZHfHfeXGdDeWy3Z3BWzlereZkhyqyiWfm+3v6I745bYzCZnmOotcZUWME4ji93N7zlZPcOmYxlZNfyVhcTwZQzlJzNpx7f/4CtGB+GBKDhHRGYxZANTcWgsLPUVAwB3HD2ZGIoz1mKkZ1KFe8My6kH97+wR1FVF0Vq45hbrF5V1HWRAlk77pBQnNsQunKoTRRtmkYRZwjELs5ylQnn43bx7QW1JktNc2qchV75tZf/NU9zxIyPabqtH6GtI7OXETOarfxvvme7RNgVhQufPZOBMCaktTS/Q49Tj++POZbYqRg55A5DdyjaouGCSdHUA/xjnkrhVk1WLHun8zS1UXifptuEUeTckkvMf62oWVhBMEStXFm2P95f7O00KPbfsGTayJXJF9goxt5v1hjDrMfOHZAShGE/Wktfz5C+s533Grr5FIRhVwGvMbWfQjBU9GuIKfiCAZhL5323OzUSmfYtAhDDPsN1Ad2w5sj0pv4b3vcaanvZFGjDdhkF2dAKwjZEIUs9YTiGFEBP8y9nKfyZBr4hQtAN231T6IZAYth3Rxccw89aEGM4mKU8GH57hvpS6FkKv2v7B2IYDD0hGII2dOctINdD7Eo+CMOezhuQ4bvSZd/ddW0wDHufh4Gh9KW960P4XRsYw59ieLEGhmb4s6mbTEEYXgfvnKSxgGV4BVtLIr2/UmHIUK3X6+Lh4dXvy6KGDLm7jFapbOpB/hFDFV+VlqSUp9nzztvjcagvze10igiSD8uj0j49gOeSwePQPdScYh4/PjOReDrnDGbp2TBf7TRinl7UPsYwiohKdEanHuvvMcqQJVgjzTa3P+4bMsowZaZwiOhp6sH+FqMMi6pWKq/8fDDBqJkmrdc5l54W/lHVojmc6ij19C6vYUO3CMbysDzW8eH2h31LBrPU3cjGRHo/OzbePuNlyJDbJ15GaZweZ3s/K4VlyDBaLBbNolj4mp8tg1m6ruN07/WXPs2GDdk6xyB2Mfp3hAWGvueNgRu63UTQhm5LGIRhvyB8Q/hn16DMNL0xtBcJg6iH/Yb2OPRz2XvBLcPc01XhB4PVgkA3tHOp8nfZ1HGrWoAwHIzhP5ClEObSQUPu6ymnd4Y7byA9zT9tCL3zRsDXFtgpgjDsiyCTDMhx2JuiixTBNtRFDMSw5zgkOoUSwz7DLC4UhmmIO0Mpc6CG6MMQeJYGQz8YMEyAGJbDhrn3htsbhv7HcNufpSV4wySWCgPI0v6+tIw5gXAcDhlKBMOw9zi0hiCOw94YNhEQw/79UoRBZylqz655b/jaW/GR2y/137C/p4ESQ2PYKwgkhokSvTDGUu8N71cMu9tFHT+lKJSnmV0YXjhiKIamWhD8JU5Q+G/4agy/hLZf4eH/0z3f5qznieXtXBN7b7gp2dBUCmAuPZaK9aNU4b3hPlGqk7E/FXNfHKTeqb03nJWqD/cVZY3/hgeW98I5r/2+Gd/yxtxXkH2JkUz9N9yLQcPK8ztmLCde2Ru4rpFp0VDvL2uz7B/nKm0WP1FH6GXr/UVtgUAgEAgEAoFAIBAIBAKBsfwHmQSglBZiFGIAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXGB0YGBcYGBgYFxgXGB0aFxcXGhgYHiggGB0lHRgYITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGw8QGi8dHSUtLS8rLS0tLS0tLS0vKy0tLS0tNS0tLi0wLS0tLy0tMC0tLS0tLS0tLS0tKy0tLS0tLf/AABEIAMgA/AMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAIDBAYHAQj/xABOEAACAQIDBAYECwUGBQEJAAABAhEAAwQSIQUxQVEGEyJhcZEygaGxBxQjQlJicpLB0fAVM1OC4SRDY3OisoOjs8LxwwgWNERUZJPS4v/EABoBAQEBAQEBAQAAAAAAAAAAAAABAgMEBQb/xAAqEQACAgEDAwMDBQEAAAAAAAAAAQIRAxIhMQQTUSJBYRQycUKRsdHwI//aAAwDAQACEQMRAD8A7jSpUqAVKlSoBUqVKgFSpUqAVMuXVX0mA8SBu1O/urhHwn/CZfu3nwuCuNas2yUe4hh7rgw2VhqqAgjTfBMxFcuxiu5DOzOxIGZmLMZ36kzVolneelXSPaN/DXTs5ldkxr2s1sW2AsogIBNyVksRqO6g2xOk/SCyhR8Kl5ixOdxbkaABQLdxRGk7uJrFdDrpRiqsyqygsAxUMRoCQD2t9a57xj03HgzfnNaozZWxHwx49GKsuGQqSpBR9GUww/ecCKs7M+FbaV9xbtW8PcZpgBG1gZj/AHkbgTUlvaF1QFFxiAANQhO7iSsnxqLFYp7mXM79k5gVyprBU6qJ3MdO+lCy5tfpHt67kyWUsxMlBZOaYietdoiDujfrwrT7A6W3Ev4LCYt7aPcwrPcLFQWvh0VACDlEgXDA3+qsgt2Y1cT9d/zrBdLFm+jCc0ekSS0jUdo66aR4UoJn1WDXtfIGBe+kXLd66jN2iyu6sSdSSVMkzXY/gm+EW7eujA41s1wg9TdMAvGptvGhaJIPGCDrvzRqzrlKlSqFFSpUqAVKlSoBUqVKgFSpUqAVKlSoBUqVKgFSpUqAVKlSoBUqVKgFWV+E7pB8S2feuK0XXHVWufWXNMw71XM/8taquBfDrt/r8WmEUymHEv33XAJH8qR99hVQZzXCqBuExz3edTXLg0lpjWAABPfxPnUFxoFXMNs5QA98sJErbX0yOBYn0B7a0YDnRcfK/wAtaZrmvf38qxibTRfQw9tfG5eJ/wCoKk/b7fw7Xm599w0BrifUfAgeFIHh6vKsadrzvs4f1op95r1drAf3WHH8ij3GqQ2IeN3l7KyHSZovIfGpk2+P4dn1Fh7nFR4jG4e6Ie0g+sty5mHhmdh7KhSlhnEBVYQBADAcNwkRUOMZ7bJdSUuIwdToYZSGVlPGCB+Ve47YuVS6sWtiJ07SzuzCd27tbvCvcLgUZMhZrbHMc7ybZgDKhCyFkzLSY00iTQH1H0T22uNwlnEp/eICR9Fxo6+pgR6qLVxH4Btvmzdu7OvSpc9bZDSDnA+UQTzUBx4Ma7dWDYqVU9q7Us4a2bt+6lpAYzOwUSdwE7z3UMt9NdnH/wCdw/ruKOXM/WX7w50AfpULs9JMG5hcXh2PIXrZPkGokjgiQQRzBkUA6lSpUAqVKlQCpUqVAKlSpUAqVKlQCpUqZeuqoLMwVRvJIAHiTuoB9KsF0g+FvZuGkJdOJf6NgZl9dwwnkSe6uWdKPhdx+LBSxGEtHT5M5rpHfdIGX+UA99WiWdS+Ef4SLOARrNllu4siAg1W1Pz7kbuYXedNw1r55a8zszuxZ2YszHezMZJPeSZpuGwbMZOpOpJ3kneSTxq8cJGlWiNjtmYcdq64lbe4fSc+gvhOp7gaq4mb1wqTMGbh+k/LwG7zo7tJOr+L2xuChz3uUUk+ZPnQnYlsC0DzkmqQauz7f0R5CnfEbX0R90VNjb2S2zASREctSBr50Nu7RdYEAkiYA/rQFw4C19AeQppwNv6A8hVBtssOHs/rSTbDncs+r+tC7l04FPoDyFe/ssEMQggDUwNJMDXxNQDG3Ins94IM6cK3+1MOqYJgggEKe8nMpknjQhkuj2MKk2WhmUHKDuuWz6do89J/QFUsfghYvhUnq3EoedthmU66ZlKgHvTwqXBD+04c/wCKB6jUvSJJMTEO6jmFYKxA5ak+ZoCsmPv9cl9HYXLeXI43rlEKO8AaQZ003V3DoP8AC7h8Qq2sYVw1/dmOlm4eYY+ge5uehNcx2Xs8G2IGh3+PKqO0NgbyBSipnQv/AGhMaD8QtgjKzXLmYmFMBFXWd3bOtZK5tD5NclwHQegRv7JBEHQzkIGkHqhpDm3kcTs66FCksVWcqycq5vSgbhMCY5V5s+bbgssgGohZrRt2+EgXTl0hdHUgblMggCH5bmRh6LGhNvaTZ8whSdcyyjncI+TIIOnCYOdRNb21t7Z1y2Bktlo1HVmZkk70B3sxP2jzrH2bWGfEZYFtSd+Yg68e0TroPKqQ12xumeItWxN29u4uLm7QyLqOYBnRSNwUZmYCj2G+E6+im5es27lsHXKTbuwJmFl1cgRxQEyJHZLZHaWzbNm3mS6SYnUqxJ0E6RrGncFQCANczhNqfGmXBLbIa8y2wwYbiYO+AigEn1HnAhT6ktXAyhhuIBHDQ6jQ7qfWDt9PmViDh81uTlZGg5J7JKkamI41tcFilu21uIZVhI/I8jUotk9KlSqFFSpUqAVB9s9KcFhcwxGJtWiqhirMM8NMQg7TE5ToATpV/aWOSxauXrhhLal2Pcok+uvkzpFtC7jcTdxN707jSBvyL81B3KIHfE8aqRGzpnS74b2YNb2fbK8OvugT4pa1HgW+7XLtqbUxWMbNib928ZkB2JUH6qeivqAr3CbOmtdhOiV5Qpa0RmXMoMByoBJYITmIgEzFaolmQwuyyeFGMLsburWYbYbwkWnOckJCNDEcjGtSHZd3ReqeWAIBVpIJyqQO86TzoQBWMEBpH6/QqHHYeASOXv5c60CbIvEZhZuQCdQjaZPTB8PwoBt68FtniSVXkNWH4A0IN6SiL1r/ACh/0x+VB9j/ALlfCi/Sk/LJ/k/+maEbHYGysEGBr3b99Cjdo/um/l/3LVW3hwc7H6RHqUCKubRHyLH7P+5abhmUK6MYLHOp5yAGHiCAY5NVjyR8AzbWA6sCd5APmAfxrV9DeiPWrbun0XbL6wCfwrJ7axheAdYAE8wNB7qK7A6XXrAtoD2EbNl5sREz6z502sb0FunGxhhsQUAjNaVz45nWfJRRvazTgz9lfetZ/pVtz43cF4iPkwg8AWYnzb2Votpr/Y2+yvvWoDEYc/L2P81aubbMPJ3C7r4ZVmqFtx11nUT1y6cfL1irvShf3v2/elChXE41wAttEyT2QCM3qmDPhUY22V0cOncf/wCtfI1NsjaQWyxYLla3LEiSBE6efuo3gOjWPxWEOKtC2LZBK2mUu7KOJ1AnTcKlmmlSp2/f4BlnFJc5N4aEeonXzr1tn22H6/XKg1vDSzZV6q8hhk1CnlodVnUeI9dFbOIzKjDQnMGnmoECJGpJ8laqYIruwlO6qd3YrgaEx46Uat3zuMTyDDTmDMcvdT/ja6SYnnpPnQGVubNvAEBmA4gMQPIaUM6i5YcXFJV13HxEHx0NdDW+vKsX0vvTcAGlCkuz+kuKLBUQOeSrcPrIQ7vVXTej/TzFYKzbtXcK2IQEybKXs4zNnYnrUUHVmgAcAJ41jMFaNtEw9ohOwHuvxJbcNNTxA8POpcxHV3QpbMCQM0QwJOh03igO9bH+EDZ+Ifq1v9Xc+heR7LerrAAfUTWnBr56t5txJYcm7Q8morY21icMhexdZSNchJa2x5NbaQJ+rlPfU0l1HcaVZb4Oulw2lhjdKi3dRjbuoDIDAAhlnXKwIOu7UaxNamsmjn3ww44/F7eGU63mLN9i3Bj1uU+6a4fdw0Gut9OCL20LoJMWbdu3EkCTN0mAddHXyrne1cKA5/r+NbRh8kGzQNPeBIn3VudrbaGIudcbTLcIAcB2NtssD0coIG7TN+NZDBodIEnlV/42qiGdQeWYT5TQhtLfSkqRGHAC3etVZgK2UoVGW2NI9Y76qnpM+XIbOgt20+cDmsubiXFYrp2j6MctazK7Utj+8TxkU07Ttx+8TwzClFs0j9MbhVptAlheBILL2r8agZfmgRv1neOPNemUrbttGguAn1AxR+5tG39NCPtCqGPv27ilWZGBG6RQAXG7ZF89Y5VSEKQOPZKjf402xjbQe52lAItgbgDAYH3ihb7MH0h94V7+x9B2hP2loU0yY7A9WUfMxIgkskfy9oR4magN/A7szRyPVMPIsaAfsjvH3lrz9kd4+8tAHxfwXP2Wfzrw38Fz9lr86A/sjvH3lpfsnvH3loA+uJwUgksfFkjwgNuortPpXh7lpragBmAE5lgAEHcCeVYr9kd4+8tL9knu+8tBRZTGW1ZzIJ6y04II1Czm18qdt7ay3M4WDmbNpuGhAHfvqv8AsfszInj2lp1jZa5hJETrLD86AN7OwxfC5eJTSd3dPdWwv/CZZt3rGSw6iyo7AxBtJmksyvb6ozBYiQ0EQaCWr9tRAZfMVXvsrGYB5HQ0ILE7SOJxN/F5cgvNKrM6ayZgSNd8DdVjDmX0+fu/zV3HuzDT1tVFnp9m4dRx0I+0uo/EeugCdsbj2oOugadRugTB13nn5eu8E7p3kAGOfanjx3COdRsRmkDf2xHpQ+pmNYzZtw4U1TEanTiICqee6VPM6R5SIOuAeB010BGupaQpgac/Gspty205mM6gQRDDSdee5tdNw51p3mCIERoNSIMakhoK9x9hoNtFMykCCCN+oBbR92gGoIJHMmhS1tPGtbfrQCyXESSOEDQ+0z6qG4QtfuLlByhgWYiAADMa891GeieOBAV99vSIBMagaNpoTGvdWlDJAyiN/ADeRxGtbUU1yYcmnVAramJKW5mJZVLclZgrHuhSdecUD2xjEW5msLkjlvPcfpT31qsZhkcFSAysNR79OGtD8P0Ws2u32mI1GZpVd0QI4TpJO6ppZdSL/wAEO2fiu1GsMYt4oFI5XElrZ8s6+LivoKvkjbF5rV9bqGHRldTyZCGU+YFfVWxNpLicPZxCejdtq47swBjxEx6q5s6I5bj7+bGY1v8AGK/cVU/7ayW2vSNHg03cYeeKvn/mNFZza7amtGChtG+wC2behZczndM6gE8FAg+uqI2eeL+z+tXb4/tD/VVB/pH5VBi8Qo0zhSN/ge7fQ6QhrdXRXOA+t7P60w4P63s/rVrAYwXXW2q9poA72ngTzort/Y1zDWs7iNFgwTqdIJ3A7z31E74LOCj72Zw4X63sppsd/sqHrW5mn2g55+uumhvg5NpcjGsHn7P617lPOiFmyN2/masDDL9EV2+ml5OSzpgUzTSxrQYbCI1xEyDtMBu4UWxuyLSll6tA24aAa6MI84rjOGmWls9mHDLLjc17GHNw0w3jW9w1rCPhTbexbW6GlbipDsDplZgOB11rIY/ChRu3NEx5U7btp+xwvh+Qeb5rw3zU9lROo0ohfS3l0RZ8BVjj1RciOVOgOcSajGII5UZ2NaRruVkVgwIAIB1idPL21rMRsrD20GaxanvtqI9leaeVQ9joo2c9TGGdRpV+xdjUbqXSV7JKdUqLAbNkXKDujdoeOtV8L6A/XGtxdqyMOYHCNeuLbt5i5BO9QNFLcVMaaanU+MVHeR7ZXMCJEiRBiSAe8SpE91E+hdkvicou3LRNtAGtTnktZUDRWMSw3DhqYmpenWzzYuWQ10XWNlGYqyOqQzr1asiqCFC8t5NaIVUuaKN41WNNfnLod8drTvqwg107XCSCo9Y3nXdppFDbD6Id5DCJneexw140SB114bu4cQAV004HnQCY7txEaEkBeUgaHWOe4bjVHGgRvHfqRJ1MDXQcN3CrhniNN5zZWkfWOXUngSIqC5O8SCfva8FgQRqBMQOdAATeNq4Lq6SdQeO/zmDPf41ttmYtbqgg7/Pw8ay2LsSCJMd87vymO/TnNUNmYtrbFJHnpzBGmnDzoDo4t03EsQD3isim2r0xPt/pV8Yi5cXUjzP5VbJRn9uNLGu7/ARjjc2UqH+5u3LfqkXQPK4BXAtpqQSD766p8Ce2BZwV5TOuJY+duyPwrLNIr4cy2IO+b96P/wAjbxzrP7UHaijuEP77/Ou+241BMcPlB4iqZKFz/wCIv/aA8iw/CrKdH0ugXMwluB5zlA1Ou4VUX99fP1z7z+dG9mOuXmwkxPATOm/Qanu1qptPbk648etva0lb/AJxXRu4nojUHTKIYEbiO+aL7Y6Ri5s25h8TmXFKyBZUjrArqZOkA5ZkH8a1+wdv4R4FxRauwFzks6so3qT82dADBim9KBbxjhbQRriKAyuyEwJUdsNJkkRI47hXLLmlF1mjXyjri6eM3WKX7nKrR0p1blehKCet6y2TqoXKY5iDo3qIoPjuid5D2Mt3sz2TDCN4ynUnuEzryr6cOrxS4Z4MvQZ4b1a+NwNZTSpor02WSMysviCPfXh3V1uzilWwU6HWc1x7v0RA59rx03e+rW3xDqw4OD5gg7vCo+guHPUux+c5G/6IG4eM+yiG1bcxP6j/AM18teubbP02D/lhVeAHtBlUyBMjWc0ZjvaZk86BbYMie8e4iiG23PFxu0EGdOGnHxrP4m+SI7x7P/NejXvXwfIzYtMrXD3KxNOa6aZXlcW9iVuarojcwtg/GsTcDESLdhO1cZuLNwRd4EkT6ta/SHpHdxjGQLdudLY17tTxPs7qDYexvngKI7MtBRmOrHd3Dn41z7Dfqe9mtaugPtbCsmQsIzTHPSPzp+F9AfrjVzpW89V3Bv8AtqphfQXw/Gtyi47Mw2nugxsPFPbxClLj22KAZkZlaMimJUgwYGkivekuKuvdPW3bl1gsA3GZmA1IXtEmNSd/Ghdy0BBBuTAOgPgI03RFeKkntG4Rx7J3fdpaqjNO7CFlvk55NI9UEVaXHIRy+qc0f/qT4mPdVK2fknPfVO4pzPltEqrZcyhtNcqgkaAncJ1PfUKH0YGDMjgSAdecTHkOPdTTG4mDyJgjykzqN/OghtuBnK3VGhzMhIhvROeBAPDnwq5szFt6EmDIGrb9DG8dkgTz09VAXVyj6MwdM2i+viY0A4c6C7YslWDerh4jdx3+VHcpOkmd0Sdx5AkH1nyqptW2DaMHk3ziBrMTxMSdeJNAUSdx5ij+zPRrOr6K+VaHY57NAAduDtGtT8HN2MPc/wA4/wCy3WZ2+O2aK9DcTksuP8Qn/SlGVGlwbCbvfcuf72oTfM3V+0PfV/CN+8+2/wDvah398v2h76GQfhzL3T/iGq17Fm3dzDWCDx5DlU+BP7z7Z9wobtS2wckq0GIMaGAJpTfB2w5NErugjfx8Q6ei3AzKN9GYAI5Vat7TYFL1sxcXcTxHFW5qdZFAMLfK7jod4IkHxU6GpcTbXKGtklSdVO9D3kaEHWDpurusjktM1Ylj0PuY3R2nYHSG1fwhfMZEZ0A9FjrkUfRBkjUnLGtDvjtu5oOemnl4b65dgcU9uWEwdGXgw7x7jwNabD3hAe3qDuj3HTfXy543gn8H3Oi7eeLae5rL1lWXKwDDkd1ZnauxSgL29VA1We0PDmPbRjZ+PDKJ/Ub/AB/W+mbRxAQTOvDxr34cvvFnLqulWT0yW/kFdFMUttYYwOsaTvjOoIMeIInlRvHQYI1n1HyoDhUXOWWCH7Lg7leZVuxOh1A7zRHDcU6xWCmBrrvkb9+nKuEpKOe1w/8AfydcOJvAovmO39P9gTtiwoVmLRPHXX6vd4RWPs2c6HgZn+ldVxGEVgQyhhHGsR0a2AbrQwPVrJJ3ZjOiz69Yr1QktTcuKPndZhlJQjDmzNHDmJ4VNhVK9qNYkd31vVW1xPR6HgFY5cqHdLcKlmyqrBZjx3nTVu7h51MihVxZzx4ckblNVXuZe1c7J5k+wf1NT2cRrVOI8qSmtKTTXweNq7+R+27k5PA/hXmG9AeH41Xx59H1/hVjC+itZyu5NkiqVBro/grd284uKGAt2yAxcCSbKaZHQliGKqMwEsJqXpNs9LWXJaFo5jKzcLKDbs3Ari5ceGU3GGhAOmlBrWOe25a22WUVTuIIAUlSDIOqj1irWe9iModiQskCFUCYkmAANw79BXM0OsCbLjjpTtlbcNguRZuPNwusFlWCroQwyHMIeRqNQN9XsM1m0PTztxMAW1PLM7KCfX6qdf6S293WDwAtx7Ey/wCr10IDNodJC9o2VTIWCi4xyl3yxAMKI9FBO8i2JJ1qpszVl37+An5pG7jRNsTZu6MqH1Bde4iVnxinYjZWRc9rtKILKfSHiOXeNKAsltIA/DU6bl9s1Wx0G2w01UgRB1YQFB0PLf8AhXlrEgjSJj0eM8iP0Kv4WyPScgvw3Qvco953nuoAC6woHeaObBbShW0PSgUS2G2lADOkPpmotjX8qEfW/AVN0g9I0KwzwPXQqNpgMeDduWjvguO8FmB8jHnTVPyyfaHvoXs5v7b/AME/76J2z8sn2h76EB2z9z/bPuFD9p3znK8o9wq/s7c/2z7loZtSy3WMQJBjd4CumO72MuvcqljU1i5qJMTvPCPCq5769toSYGtWtzadLYm60iYOn4US2Ftk2G1XMjekkxPIg8CKoJhxuYmeGX8zU9rC2zOraeE/+K55Yqa0yPV03cg9UdjqOEuWL3VXLJGUgygYg7jvUaSDv9XdVTbmCIU5ZAO8AkkacI3j3e7E7GLpcU2GIaZhoKmJ3xHCR661K7XJItshR5nQF1Yfzagd5HCvnRxzxyuO6PuQlqpS5M1bxjW86EQG0OhkEcY58a0uy7Ob5VToZJneZB9nHyqXGbJtFg5UkfOA3gfiPdRXD4dFWFiCPfXqcLafg13NKa8ke0lY2yqmC3ZB5ToT6hJpFlsAKnBYA3DT8BUr3dB3D20L2ndAUkmCfPuAHGK3OLZyhpX3OkR4fFF7mWYmST3AEkngN26sz0wt3LjByCFUQgO8qCZYj5snh4Ue2PtUYd84UNE+lrJ4FhMaTI5GDQDauKLlmO8kzPM6n2ms9mcHczw9Z1kM3oxcfyAcVb0UjlFVxV60MylfKqW6vblXElwz4+N8xfKK2LO711bw3oDwqpi+FW8MOwPCuDNky2AWmNfZ4xU2JvnLlUQN4B+dHOPCvcLZLuqKCSxA0368u+oMbg7qkO6gByQpVkdezAKhrZIBXQRMjSoQH3nJ3nUaeHdHAeFa2z01sKVlboKneoXRBct3Dag3IYXMrBmhTBUEOBWe6kGCRJ3CJk6wBA366RzqbqViOxPFOPnlyf6qFBCGTK7+AHCeFaHZmOa1AZt3HgJ4RxXmO4nhpSs2EUkgZZ0JgkjwH4aVVxQbNqCI1A8dQe87taENDi7ahg66K28fRPLwp3xjSqeCYvbI7vdqPZ7qjD6UA3ENLUX2JQU76PbCWgBvSNe0aD4dJHro70nHaqnsXCZ0Y/Wj2D86FRcw5Px4yZPVuD4i4ZolaPyyfaFQLhP7VduHgbiAf8VyT7vbUtlvlU+0PfQhR2d8/wC3+AqHEXCHYRyjyFTYDfcH1vwohgbTBmbOQDGkLpGm8ifKumObg7Q7cZ7S4BY2a1wEtAA1HExUFmyoYSd3CumYLBubYuXnCIwhFylrtzvVQd31iRQHaGCQ9o2TmG5T2Q0mYJidx4zMDnXFdY3Jtqz6C6fp9CjGTj+UZ9FTNIifUSPyqeFaMw3cjpU1y9g1OS5bu2W4kgMpkb+yxkeFErC7POX5dTrDh2ZZGplQYI4Djxrr9Xa3iaj0kP0zB7DMMqEgniBJq/8A+6pMs1xsx3MQwg+M0Xt7U2fbBy30BYQCoBj+VQAKjt7f62Fw6NdA+cRkQHWZZtePBa5TzdziJ6cGKOP9Vkux9nPZBzXWuDQCQdNJ0Opq1igUGa1v4oR2TO8An0T+PrqfDF8vaInkshfadfGmX8aOsW0xlmBYAcFWNW7p0Hj3VhqXB6G73sEYXGF8xG8N87SNAd3r9tVsfglWbjOqlvnOR4wJPsrMdKcpxV5WgQwyt/Kuh5igdxCphgQe/lwPeK7xk0rPnZs6txaujQYnbkdkMLgiNVXdwGYrO/X1+qqDYjNE+Q0GtDJqS09YlueV5HIsLo5HOljbHzh66N7G6NX8U4KqUTjcZWyDSRuEme6uh7H6G27Qyulu/OuZlOYaagKDBXx766LqYRxaZbs4fTzeTUtkcR2jhnQKXRlDTlLKVzRExO/ePOpsN6A8K1/wvOmbCqm5VuDLBBUSgA18Du5VkMN6A8K4wnrjq4NZI6ZUXcI7BwUnPrljfmytEd81o+k9/Eizas3Uw6pmW5NpCh6x1uRPzWzBXJZREqRoQRWX4SJkefnUm0Nr3buXOwIDZoVETM5mXbIBmYydT9JuZnZgk2biEturXBIAIGpAzEQZI3dkvrzijmMfZwZCnUuDiF6wZ7nZssLeZQRclsuZ+2u8qTpurO9QXDdmR86OE7h3nQnTXQnhVS1svtaFvCJP69VCljPmzGAO5ZgGNwkk8t5NbfbOzcELyriHVGNmyFksIyvce6WykBcyKtsE/SMagGspZsNayObZyhgQGkBipDFSeB46+MEVW2xtNsTiLl1hlzGAv0FUAKvqAHjJPGhAhgMhuN1YyoW7I10ENzZj5saoCrOCfKpPcfaMq+yT66p0B6K0OwxurOrWj2GJigKPSca1f6B4YNYuH/FI/wBCVS6Ub60fwWYbNhbp/wAcj/l2qjKgbe0u3x/j3h5XXqojfKKfrD31a2m39pxMf/U3x5XXoeX7QPeKpBmE/eXR9b8WH4UfS3bw2HGLunOztFm0NxKkgtc+qCDoPPWgVsRiL47/APuf86G7ZxLM4QsSqCFHAT2j5k1zyKTpRdb7/jwbg0nurNRhumVxbnXdaetj0o3d0bo7t1La/TC7iP3jlteMaRujlvrDTXoeuvpqlFD1XbZor+LFwZX1njxHfNBblvUrO71VEt01LaUuwA3nSsKKR1Um3QV2NglJD3FLAbrYmW+sYHo93Guj4O2AoCiBy3Vj9nusFZVCSIczKqNMojjHCtA21bdqzmFwPlESeJAmDG7h51INNM+1LD2kkufcL3LiopYmFUEk8gNTWL2N0iV8ZduPCq1vsTwW32o3cRmY+FDdvdILmKbIkra5c92rVRfBiNNDukd+hrtHDLIrifNz9fHHNJb+ShjcQblx3MyzFue8zFXMDtJQnU306y1rlI0uWmPzrbcuaHQ9x1qNtmtwPnTbWzLrHKltnbkgLE+oa0lhklujxR6hOVp8jsZsxkZQCLi3P3bpJW5wgDeGBMFSJB7iCdX0X6IdqcXacbiq5gFOpBW4oGbluYUT6L7FFpOrvWUuOWzhGzMl0AcFYAW2AJGatkMGl1MyFhBywCVKkfNKncdP68a+dkzN3GJ9KHTxVSkXsLhhbtoidkAEKgJyqNO/Ud01OUbSZXWDGnmOVVLQt24UAkniTLa8z391WtDAJj1wdO8EV5tN3dG2qOVfDhbh8KdNRd/9KsJhvRXwrd/DesPhN3o3d3jbrCYb0V8K+lhdwR83P97LGaI7/Dw3b44TunTfTSgEsPzjnp+AqviT25+qn+xRUtq9+vy5+/xrqcSNr7L2lJETGu/x4H9cq31ro9enqziLUHSeqOpJ3FOtC+g+Hfd/fgaxJxLWgRMevd/5pKzgyHuA6iQ0aEAESO5VHgoHChSC/jLrt23Jy6AblXwUQF9QqZgGgkdryn+n640xbIHADlxPqFS7vHjO+hB7NpHrPjUZotsPYrYkPldVZTbUBtAWuEqJPAab4O8VDtvZnUMi5w+e2LkjcJLLH+mfXQFFBWj2KNBWeRDEwYmJjSeU8+6tJsf0aBg3pS3aroHwI4TPgrx/+5Yf8uzXN+ktyWNdj/8AZ/sRs12Pz8S7D1LbT3oajKjl+2my4zGLyxV//rOfxodcvCaOfDBs9sNtK6YOS+BeQxAkjLcUHiQyyftjxOJW/NUgea6PjLHg4kHv0YD2nyqLGbNzsWzRPCJ4Rzod18gA8PdUi4tvpHzn30BKdk/X9n9ajOy/r+z+tL4230j5034yfpe2hbYjs/63s/rUmHt5DMzpG4fjURvH6R868NzvPnTk1GcovUuS2cQfX37vKqlyW9Jie7cOWg4bq8zd/trwnv8AbWVFI6ZOoy5PulZZs4kKIC+3+lPO0fq+3+lUoH6NLKP0a7rNNbJnkeKL3aLZ2n9X2/0otsrpZasifipNzX5TrSDryXKQKzvVj9GvOqH6JrM8kprTJ7G8cVjlqjyau/8ACAzFWNo9Yu5hcAAHKMv407BfCH1b5+oJ3SOtgMROp7Ou+sl1K8vaaXUry9p/OuDwwaSrg9S6rKrp8/COhD4WlBn4nrBE9aJ14D5PdTT8LqxHxOf+KNPCE/U1z42F5e0/nXhw6cvaanZh4Md/J5C3TnpYMe1oiz1QthhGfNJcqTwEej7aF2FhQO6mrYUax7antrW4xUVSOcpOTthXZ2PwiAddazONJyKwghDJneV6uBodLj+tmP2lhGtEJay3IjS2gVjASZB7O7Nu1JO6aEvhJM5vZTPiP1vZWiBMH+zPznTyodZvEuQMqgBjqoaFQFuMyYHGrVy58mUka/lFDbTMrFsqmQwIJEEMCpGhB3GqiF/aGHuIGV2ZSoBy9WLYZWIWRl0bfv8AGoMGOz66bdvuwaVWWgFsxLEAg72c8hU2DSFpKvYiuty7su3muqvWdVJ9OYgr2l4jXMojUaxUeMtZXZcwYKYzDcYpsUoqFDdy6n7OtpIz/GZiRmjI+sb47Q176WAxIVaCTTbmIigGbZvZmJr6E+BWxl2RhyRBY3W87rgHyAr5vYNcYIgLOxCqo3lmMKB4kxX1t0a2UMLhLGHBnqraoTzIAzH1mT66jNIr9Lui+H2hYNm+vejjR7bfSU+8bjXz/wBJvgr2jhCSls4q0Nz2RLR9a16QPhmHfSpVLKZG9gMQphrF5TyNtwfaKi+LXv4Vz7jflXtKrZKF8Xu/wrn3G/KvPi93+Fc+435V7SpZKPOou/wrn3G/Kl1F3+Hc+435V7SpYo86m7/Dufcb8qXU3P4b/cb8qVKlihCzc/hv9xvyr3qbn8N/ut+VKlSwLqbn0H+635V71Vz6D/db8q8pUsC6t/oP91vyrzI/0H+635V7SpYPMj/Rb7przK/0W8jXtKqKPIb6LeRr0O44N5GlSoB4xFzkfKl8YuHn5UqVBQ+3d5qfKn9cv0fZSpUAuuX6Psr0YocqVKgoRxgrw40UqVBRG2Mq5s3Y+LxRC4fD3bs8VRsvrc9lR3kilSqMHavgw+Cz4m64vGFXxAHydtdUtT84n5zxppoNYneOp0qVZNH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAPDhAQDw8VFhAXFxUWFRAVEBUXFxYVFxUWFhcWFhYYHSggGBslHRYVITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OFhAQGCslHR0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tKy0tLS0rLS0tLS0tLS0rLS0tLS0tLTctLS0tK//AABEIAL8BCAMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQQFBgMCB//EAEIQAAEEAAQDBQYDBgUBCQAAAAEAAgMRBBIhMQVBURMiYXGBBjKRobHBI0LwFFJygtHhJDNikqIWBxVTc5Oy0uLx/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAiEQEBAQEAAwABBAMAAAAAAAAAARECEiExA4GRoeEiMlH/2gAMAwEAAhEDEQA/APkSaQTWkNNJCBr0vKaBppJoGhCAgaaSYQCaAF2jwz3C2scR1DSR8Qg5JpubRo6HoUqQCEIQNCSEDQhCAQkmgEIQgEISQCSaSASKaSASQhBGTSQgaaSaBhNJW/BOCPxRoaDm47AfdBVJr6BhvZvDxUDGHn95+t+mw+C8cS9mIZWnsmCOT8pGjSejhtXiFU1gl6Vrg/Z3Eyva1kROYjXYUeev0Wrk/wCzu43OYZQQctuyEZroAtAvc1SLr5+mFoz7G4lmIEUtNaQT2oGYdarQ2V2/6XYzFMhdNnBa9xAGVzQKrmdyfkoaosJw6WQtyxuIJAzZTl153Wy++cI9ksHDw/DRyNIlflAlBIfnfbgK1G1DUFY/2Y4KHYiKFpLm2G6httbVu7wF+4D8l9M41icsxdVtw8TpAOsr+7G2h+tUqT2+cccwjYZnsyOdDmLY5JGCn5TldRqjRvbwUr2f9h4se173Rxxta4t/ye8XCjsCK3HxC9v4RWCbipMZ+M1xLYCdWnPq2iba78239VuMJiHYThZxEziZOzdK9zty9wtoPxa30TTHxvifBOHxzyRUTkdK10jXuAAiFudRJ0stHqo2O9lIGtLmyyN/iyuHyAVfxd7mYJzyfxcQ4NBP7rjnefUBrfUK04u6NnDw9rgJgxocY320uoA2B3T51aqMXI2iRd+I5ryuGEkzA+f1Xe1GghCEAhCEAhCSBotJCAKEJIBCEkAhCEEVNJNFNNJAREjCYV0ri1o2a956BkbC9xPgA0/Jbn2c/wAO2GN5p0jCbP7/ALxZfWjoP9JUD2dEDcI+MPacRMWNcBqWwlwkeCdhYjjbW/4jldyQskaWvaC3TTxGxB5EdVZGbVnIaC44jGtY2wLf+Vg3JAv4dTyCg42F/YSNZI8nI4NBI3o0M1ZvW7WTm4/j5AYzmo6ECMBB9Xw+F/ZcNh4mx/jGi2UOJcQByaNt/kosUUpmyC+1zDc07Nd2fraj+y3tJFiWCMubDIBUtgZr13JB02qviNlIc2JlyPnb7pd3jR02aSLonp81RI41hpGQSPlYQQ0nPmG4bprflXIL5hwNkzMSx02YSNYZJA683eaCA7NrsOasPbr2xjmY7C4Mksfo+TkRzAA0O9X9159nmF/bSOJJOVlk3oAGb+iySZGowfEcRhnM7B4bI1pLnZGusu30PXvLR8O9rcrX/tMHaPeWl8gkyG2e7QA7tVehWSMo7Z4O+Vnwt66doOquGtVHj+Gyuc7ERy2XEggflNd1zg4uebvvHXVcfbb2pbjcOMHAxzc7hnfsBG3feqPu9Qs81w6qO2U06UCy6mxg7HofIm3HwHgmGo+IwsPatnkcBDCHNjB179091DXSg0eR8FkvaT2pMxMcDQyMaGQtGd3r+UfP6K29rsUIoBG08qvmepPid/VYK1KsiZg5BsaF87oevTz2V+32bxZYHiEkHX3mXXWrWejhvI0bnvH12HwF/wAy+jez1xQBgLx1Bsg30uwEi1hXCiQRRG4SWzl4VgZnvaJQ2Ue80ECidbNaepAWe43wr9lcLkBBqvEHYjqqK1CSFA0JWhA0JIQCLQkgEkIQCEkII6Ek0DSeaBTSk90+YH1P2RVt7OYiWFrpGxt7Gw18pbeVzvd1J6keAsWt3xD2hhlELMLB2QAdmfM0NDjlIaCfzakEnbu6br59w2d4iMWY9kXZyzkXVVn0A+CuuGmExGSSUl4OWOBtkn3S5zr0DaOmo18lqMVtMXEIoXTg5om13mixZ2F+KpJ8fC0xlrmvLg0ljQczS/KGtJPOz/xd0Vo3jMBjbFE2aPW8r5A+M6USBdE+7egOmm+mY45NBBUjIWh/eAommu2JA22Ng1dFSrELj0EMkgfHN2cnUggHzI2IVWOEzy6PxLXN6mYuHzND1Xb2cf203ZZWlziSXSPLW1yFhppd/aXhz8O63Rhl0Wlrrabo1psdRvXNTYuVD4jwoYVzBdmsxPhsPqtjwGPLhR1Iv13+qwuHLnAAm9WtF8rOb4d35r6BgDljaPAKxKnyQseQXNBPI868xqvBwTeRcP5r+tquxk74H5b7u7b6Haj/APqTeLHmB8f7KonnBA6GVxbzHd1HQkDZemyB34h90Cox4Hd/rsPDzUcF8gHaANYfy3q4dD0b4c/rw4vjMkZQY72qxnaS10VNEzM4Dbqeg5n4WU8VLne53Ur1hm7ge87QeXP7D1Kw2u+B4cySF9eQ+g+gWzEnZxW8+62ydOQs7aKp4LhhEwXv5Kdj42yxPjLi3MKzAHRaZrD8Cwn7Xj7kcWs/Fmle3drI2ukdR5bUPEhV0sksmri411s0PH+q1/DuHfscGM/FYZpWxwxnbuGTPLd6C+zY2r1zFR/aA9hhGModrJvlFaDUkeuVZVTxOtoPUBelywwpjOtX8Sa+VLqqBCSLQO0JWhAISQgEJIQCEkIOCa8poppTjusHWz9APoU17czMGEcrafjY+p+CCXA2o/RSuGREub4j7m/t8l4ijJFUrDA4cjQtJbyLd2nqtMpGLOR0TS4A253kGseSft6rO8fxmY5b/MT8Ghv1B+CvZ4yxjndm7M4OD5XimtAGrte9qDoN7G6yUcZfcjhbG0Deln8rfM7nwtZtXmW/HXDl0bgWkh1CyOv6Nei78U4xNPTZXlwbttXTYaLievX6rjiRqPJZaWHDjeTxeP8AiP8A7BbOOSgFiuFNNxeLnn0pg+oK1LZFuMVfxRxYuIQyODXt9x5rbpfgobMFBhz7wkeNj+Uf1VaZUdsqiykxN2SVl/abH93KDqforOaegdVjuJYjtJCeQ2UqxGAXSHFFhtvvcjvXl4ri4rystOsmIe8297nHqXErqzFSN2kePJ5H3RwzCdtNHEXZcxrNV1oTtY6VuFpI5eG4WssfbyjdxOZpNjkaaB3dxZHac6QZvEY+WQZXyOc3oTfzXs46SZ8Aec2TK2jzGbn40dSjHO7SV8gZlDjeWwdaFnQAWTZ0AGuyiNJa7Tej8wQpq4mwyW91e6fd/hGg+QCkKvw7u+34fJT1qMhCSLQNCSEAhJCBpISQNCSEHBCEIpqZwuYNkAIBadCCLF8rH63UNANKEbCJmHdzdEfIvZ6a5m/NW2DwRI7ksbv4X/UVoszE/MwO6heJFz/ynyvR5fjv+3H7ev6/ha+0OE7v+IxLWxjXs2bn1I+xWO4hi2vpkbcsTfdb1PNx6krrjySq9JLu9U6/Jznjxzkv6390yE21eJmZnMaOei5wPo0p0MJJsb1V9L3PwFequ45ZqThQNHXTWnKABZ1qrBIWmxnB8VCcr4X3ma33HG3OBLQ3JnzWL26FY1ziDliH83j9yrZ3tbxGMx9rOZAyUTNbK0EdoAQDYANUTpdXrut8/GOvqa+Qt0cK1O7g3UGiKcQbBsJF5/dd5hpI+IFKJ/1u50DIJsLFI1psOOjtZe0eLINB2xqlIx3H+HGYn9hqmSD8KU5HSOLTGe5k7rRmBO5vVXUxA4pjKaQDqs+SpvGcVBJiJHYdr2wkjI2QlzgMouzZ52dzuo7Y7YX5XZQaMgHdBOwJ2+KlVwu15K9uG/1H9F5BtAl1jkpckBtmgNToAoJ0br0UWYU61OxeBEMbS4ntD46DwUF4OUE7qZjW69RaEeYHzVhagRNtzfQ/r1U5ajNNCSFUCEkIGhJCAQhJAIQkg4ppIRTTSQgtuES2CzpqPI/r5qVIFS4WbI8O+PlzV+W2LHNYvqt8+4psYxVTtCVocVFoqPFMooY5xDUKfHI5xyM56afPVQ4RoT6K24JHqXVtQ+P9h81cZ1acO4Q5rbzMFAn4DXb0HqF14vwBz2n8WAEEgt7ZodYNEZd/68lpPZnhJmyuLCQXhvdjY6hpb3F7XDKCRel1moHY6zjvAIcPhJZSxpyNpofhMLq8vyNaSIWk2MzjTtAOdrN694s5n18SxXsziGPLMluAsgchZbrfUg11oqslwL27g115Hnoee4X17gvAnYpgkjgwjXF2UMbPPDIctOsCN5A1twtv5CelnEPZuWG3OixDQHOGf8LFR2NXa0yRoAZZ0NZNtFPKz6vjr5HhcA95oC1dYXgsg1aSCRRolpI5g9R4FbuLhkb2yNEMUjyWNDoCWvjDS/M4wSN7QuJNkAHShpooXGhFAR+yzOkad2PZRbrVG+e5qtNFrnrWbMYDHcKdHZb8FCw+HfI4tY3vAFx8miyVqeJYtrveFHqNv7LN4yMX91qojkc/ir32awAP4riOjWkjyLqVRG2xm6aEeHP+qn4OFvZSNdE5z7OV4kIA6d3Y9deqkq2Ucbf2k4YOtKNi2VY6LvgMIQWyOFHUUet1f1XvGRalYt2tznIhYJmhPoFJSYKACa6uQQhJA0JIQCEkIGkhCAQkhBxTXlNFNNJCBqz4fjw0ZH7cnfYqsQpZpLjRPIcLBBHUKqxmFuyAojXEbEjyNJvkcfecT5klZ8WvJzqgArPh0rgMra63X68FWN1Pj0Vzw7BSGu47kNupyj56LUYq74fAX7k/L+iuGcNGneI/2/cKDw6AADNm5fmdzsDn4FWrOz/8R7f5nHw2ctMo0nDXcnD1b9xSm4Hj2NwrWsbTo2+6098N1B20NW1pqz7o5WF5Id+WUH+JoP8A7apcHyPHvM9Wm/kaPwtSyVZbD47xv9unMjw1rqoRAVl1JJo0SS4ucT4qj4pO5zhncXEC7cST0bqf5lYYp0cgIIBrkRqPTcKixlNBAJ9SSenPkmLqi4lJmfXIKJFG9xysaXaE5QLNDcrpiLzOJ6qw4LMYIpJ8mZxc2NgutfeJuv4VBC4VHmc9ta1t8j9lYwYxseYUTr4VoANPgqfDue15JJs5muN6k7n5qSs+O32355PSc/HNOzD8R/RRJZC42fh0XhCs5kS9WhCSa0yEJIQNJCEAhJCAQhJA0JIQcUJIQek15TUDTXlNA13weGMrst0OZ8PDxXBWXD4HZLGl8/DZLc+rJvxa4QQQ6Cq0s7kjffxGYfBWGHx7SNDbuovVwaaOn+t73egWWxb2Rmvef8VEOMkO2nmQPqk6S8vosM7RtdDa2u2a0NaNuZsrsJW7BwvugWedePwK+csmnGocP97R91M/bsSxjXZ81l3da4vLarVw2AN6VexWtTG3cxprprR2po3N+el+S5Pc4Cw47Zsp1940xgPLxWNj9onCw4eBrS/NWEHtHZt2uuY+JAoXXIdKQxbY6W9Hs1BLQ4a94C3ZeYA2tZzHTdDY+asxjmSNyh2paIwT1kdcrz00CiY6NkgLgKJDnADoXCKFnhepUGemk1UwcWLcKIIxRDsxfZvR2b618FDxsDmOIOo1pw2IDi2x4WCozXUbUaSnQPLHSmyA4Fzv9TrOvmR812XB7e83XQ6jy0/oF3SFCEJKoaEkIGhJCAQhCAQkhAIQkgE0kIOKEk1FNCSaoaEk1ENaLCn/AA8ZHMAet5Ss4rXg+KH+S80CQWHo7TT1oeo8Vnuem+LlR5cOS92WstkF7jWY/UjwC6QwBupkP8rQPmUYyQdt4AUB0olR8W43XKkhc1cRYhrRWeb/ANQfQhdHuY7d1/8AmQsd/wAm0VnsNxEs7kgscnc/7q3ws7HjQ235hZvXUanHNecVhGndljqx9/8ACT7FU82CINMdZ/dNtcPNrvqCVpRE0e6+vA6fI6FQ8Xh2kUTfQgjTypWdl/HZ8UDZyNHeVhTYcc9tEHMAQfVoIbflaj4zCFmo1b1H3HJRYpC02PULWudn/Vy2Vkjcv5dB5AANB86MrlVzwlpr9eXxseiktjzNzs9QvD3ZhR33TdMdRWRnUA+l8kLymrJhbpoSQqhoSQgaEkIBCEkDQkhAIQkgE0kIOKEIUU0JJoBNJCD0hJCDviiXjtG+8PfHj+95H6+i8xTNkFHRwXhjiDYOqUkLX6juu6flPkeX61U+KcsPJw9Vx/Z3A20/OiuomezR7dP18V3jladtFUeIsZM3eyPFt/Rdf+9jzYPmPsuza6pkKeMWd0oMSX65Mo89T/ZRMdgq78ele83p4jwUwCl2wozPA5bHyPJSzF3aicHb3iK7rhfkbopY7D5H3yNq1weGDar3WjVx0B8fLxVdxLECR/d90aA9ep/XRZ5u1rqZEVCSF0cjQkhA0JIQNCSEDQkhA0kkIGhJCATSQg4ppJqKEIQgaEIQCaSEDTSQg6MkI0B06HUfAr01zObK8Wn7H+q5IQTG9mdn14Fp+oSdH0kb/uH3KioVHYQ/vSjyzf8AxtSYcaIv8tuY/vOBA9ADfqSoCFnNXUnE42STRzu7+6NG/Ab+ZUdJCqGhJNUCEIQCEIQCEJIGhJCBpIQgEJIRDQkhB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSExMVFRUXFRYVFxgWFxgXGBYYFxUYGBgXFhcYHSggGBolGxgXITEhJSkrLi4uGB8zODMsNygtLisBCgoKDg0NFQ8PFSsZFR0rKysrKystKzctLSsrKy0tLS0rNzctNy0tKysrKy0tNy4tKy0tLSstKystLTcrKzctLf/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAwQFBgcCAQj/xABLEAABAwEEBAkFCwwCAwEAAAABAAIDEQQSITEFQVFxBgcTIjJhgZGxFKHB0fAXNEJSVIKSk7LS4SMkM0NTYnJzg6Kz8URjZKPTFv/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABYRAQEBAAAAAAAAAAAAAAAAAAABEf/aAAwDAQACEQMRAD8A3FCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEhbZ+Tjc+lborRAuhYvpnjUmEtWCSNuAuAxOHe6OvnSOluMi1QFt6Z7g9oeKRw4A6q0aUG3IWCw8bswzdKfmReklEfG1NXnSzkbGx2YeLSg3pCzaDjJM0N7kJIQ4C7I6SOv8AHS4RTfRNP/1dqJ5lpLvmRO+y0INUQstdwxtAHOmaD80E9QB1qE01xk2uzFt+/R3Rc1sZBIzGOIPUQg21Cwaz8ckocC7lnAEVbSBteqt0kKXPHtFrskg/qs+6g2JCx33doc/JJKfzGepejj2h+SyfWMQbChY8ePaH5LJjl+UYvPd5g+SS/WRoNiQse93eH5HL9NiPd3h+RzfWM9SDYULGpuPWM9GySDe5h8CFwOPZtaeSmuyor9pBtCFkLOOKY5aPnO6Nx8CuJuOiRgq+wytG1zC3xKDYVF6d00yzNqcXHot9J2BZUzj2bX3s4jqLfvKJ4QcaNltLi42e0NJFOlGe7HBBatIcNJXE1luDY03QO0Y95TE8LXfKHfWH1rMrVpmyPFLtpH1Z7+cmnldl1G1d0X3kwaueFTvlD/rD614OFjvlD/rD61lbLbZKY+VHsjHZ0kG2WTZav/X95MGrjhe/5Q76z8VKaL4dyA0LxINjqV7HBYkLXZP/ACchqi7+liu4rfZWuBHlOFNUf3kH1ZorSTLQwPYd4ObTsKeLI+LThZG6VkTWy/lAG1e5tNZFQBia9eta4gEIQgEz0t+hfuTbS9pN5kYcWVq5zhqA2KqcLZXxtAbaHvBOd84ECtCK7j2oMx4b8GJGvMsHObWpjObT+7tHV3KraRtM85YHQ4tbdAaHZDaKlaHPpV5qHi915HwoVX9IaTLa0AcM6PbXLKjgag7iiq4zQVrIqLM/b2Uqmb7PI3AxkGmuo7cVe+DOk/KA5rmFl0Vo2aUXurF1R3lMX8MYIqxixigJ+GDXaSS2pr1oiLOki5nJVrGQBybsQOppGNAuW2RrW80OFdTZHjxKhXTsvEtvjGoHNw6k5GliB6x+KBaGJofeMQoCKkvLyOujn08y70tbhaG0L3SuLhcDgGlgAxwGGNdWxRUmkHEOF0c7fsovNHzSsdfYAHUIDiMq50vYV60Uk9haQC0tNK4rRuLXSkMFnnD3wtkdK2lbQ2yzXAzG5K4ULK/BJGJOJyWc2ouLrz333nMkk+dKG+GhxbzTkfNqKDWrRpew+VzPjtMItBsLWWeaXk3Rwz35C4GZrbheQ5v5SlM8Trb2fS7A2xi2WyyzWttsDuWbJHIIrJd/KxzztF114XgG4mrm7KrKOW6h517ynUrqNZ0nwlsRh0g+J8UNqMZZdjuOitBvtuTwEjp8nea4Dac6VTWx8LGO0d5VI+y+XwtliiBcxrnseWh0j4AKOkF3mjXgepZeT1J1o+wPmddY3eTWjRtPq1qBraJnSPc9xLnvcSTTFznHHAayTkFYdE8EZZRWQ8iOsVef6dcMPjEbipKOGz2EVPPmI6r3f+rG7E7Soi3cIJpObeuN1NZh5xiUVYY9F6Osv6S7I/8A7XF5+qZRveCl28M4ohdhjc0f9bWQt/tx8yozWOOqnnPqSrbNXMk9vqoiLc/h7If1ZO+V33V6zh6/XG4bpT91ViHRb3AubE9wbW8Qxzg2md4itKLm06OdGbr43RupWjmuY6m2hoaYHuQWmXhLZJ8J4a9b42P/ALhzk0l4NWO0Y2eW474odeHax5vDvVaMOwnvr4pM3m4+cYH27UUppjg9NZ8XNLmj4bMW9utvaKdaiQ5WrR/CeVgDXESsyId0hudnXfVdW7QkNqaZbIQ14xdEcPNq3jDxQVSqn9GNIiYYnNa4uPKPqAWUOAJzApj1qvyNLSWuBBGBBzCA5BZeFst67yYHIkXw5oADnuJvVp8KtcOtVwLwEbF21w2IL3wFlLZGOGYBI7AV9J2WYPY14yc0OHaKr5j4J2i5R929RrjdqRXA4VxWz6O4S2mzxQutFmY2zuIZfZIXOjGQL2lvgdXYiL0hCEFP4w9PNsghJjLy/lACHAUo0A6sa3h3LJ28I+XtMgo4B3JOoaGhbCI8641uk5bFe+OOzSTPskMTbzyJ3AVAwa1rnGp6gVSo+Bklmi8rkkF8zCExgA05jn3i+uOFMANZ7CkdIzUUBIalSWlH4qMAUHLpqagkHSnYEpIEmWKjgy9S4No6j3FevbjXsXlepA2nk9qEeKYSzFSdpFRkoqYIEm4qSltDeTDddDluIHj5go9i7ophriiVYF5ROLOyqqF9H2AyODR/pWK12tljZyUNDL8J2dyvi7w8y80C04siHPI6Wpo1ns8VG2+xXpTEypp0z16xXbtPXRBGG88k1JJOLjjU+kp1BYHXHSBji1pAc6mAJyBO07E4fZ7mGxPbBpuSGKWEBrmSZh4JumlC5orQ1FKg1ButJHNCCZs/B6CMB9ol/Jyw3opKFl197GkZIfILnOaaUNQKVNElYeEUETIblndfhlL2kubiCH15R4FHu5wpzBduDE5KpTWgNzONMBmaehNJLYTkKb8fw8yC6WrhfKb4Y1kbZDVwzNS55eb1BRzw+6XNANGil1Nzwjd5SbTyTRWN0RiDnBlx0ZjuitaMAIo3LmhU7yp3xvAeC9Fqf8bzA+IQaDJp2x2m1OmtMF1t3DnPdXANuuEYGVXObQDENBIGIjtKaFhMgZZpWuAjdJK98jOTY1r7offHRDqtIYauF9oJqSBVY7adY7vx/BSGj9IvjdfheWuoQaAZHMOaagioG0VA2IEtI6NfG9zHtLHtc5p3tcWuocnCoI2JvZrS+N4LSWvGRHt5lerTwos9qszm2qP8qxjhE0GQh0j6Vka4CjTWpIeSKAYmtBSJI6jFBNWmFmkGEgBlqYMtUg9u5U+RhaS1wIINCDmCFJ2WZzHAg0e01ad3tiFL8IbK20w+WRij282do6vhD2y3KKqoXTVyF21UWnQ8gbESXBvMIqTShIoMdWK1LQukIbVBZoJbU0F/kzXtvBxeeT5zKfBJkpUjI71kMVlkmibFExz3vc1rWtFS6lXUA14BSnBK0Dyyyg4UnhH97VB9RgUwQvUKor/CLgyLVNDLypYYmTNADa1MrLl7PVjgoXhporkrGG3r35zylaUzY8AZ6hQK9KscYR/Nm/zR9l6gw3S3SKaRBPNMdMprArFcSMSTm+3qTqRNn/63oEHBJuCWeEifWgRnGCirSFKz5KKtSBJiVJSUa7JQdNT2y4Y6zgN5TOJTnB6zB87A7otxPj4YdqC1NAsNiB/XzYNrqJFanqaKu3kBGitFCKLEc92LicSK4036z1lISS+VW0k4xwCg2Eg49pdhuYp4c478FpFd0ho/AuyAVPt1rxus7Ts6h1q18M9IkubZos8u3Wezxqog6A5pxo1jbz3bB6STQAbTvUorLnLglOZYtQG7auOTaOlidgOA3nWdyikEJwJhqaPog/aquhK05tHdT7KBviEpHJr1hKSWeuLe71HXuzTZQSlnmvYa/Hd19SXa1RULtYzCmLO68K9h36/WqhGeGoqMx4qR4P24RvBd+jeOTkByoTSp3HzVSYYmkbbr3MOTse0fh4IGundGmzzvi1A1b1tOXq7EzYFaeEkfLWSGf4cZ5B/WNRP9veqvGFFaJxYRVttk/dkr/Y4elXCbgRaGmyhsLjyU9lLnVaBQGUSvpXqi9qqscUw/PbPvP2XL6GQCEIVQKrcYh/Nm/wAwfZcrSqpxje9mfzR9hyDEtMdMpnC5PNLdI71HsUil3lNnpw7FN3tVCTj50m5KELhyBC05KHtKlrSVEWgoPI8gulxHqSoCDqIKwaIlDA9+wGm4f6CgoOkN6dvkpGW7QB3getVFg4PG7FeJxcanr9iXKXOkSwF2dASq1Z57rQOrxxXlstXMKqGlktJdM+V2OoHx9utW63SsZZGRnpPAlf2/o29jcfnFZ/BJQU2lTOk9IcpISMr1BuGAHcpFRmkyGG6MyMeoHUOtR0UZeaD/AEF1bJLz3Ha4+NB5lLaJa1kL5SKkDCu00DfEdygYOst3Ue007ki5o3b8u/UrFDZHRxG0yNDoy4MLziA8it3DXTUm9ts7Xi80DEVBGRU1UNG+h9vbtSlqjqL4+d11yd6D1pIjAfR81QnVmxaRtBHeCR52qoZwuod6k7C+jqbR5xj4VCiKqQs78Wn95vjRFTlEx0gKFr9hHqPmJU3oSCJ7jyxIa2MuwJbUgtHOLWPdShOTScssxG6djYDI2O8WBzwy9g6mIF4aj3diqH9gZylntcP/AFiVo624fdVQjVw4K4zEfGgkB7mn0KqyQ3HuZWt1xbU66GnoUVo/FN79g3n7Dl9Cr574pvf0G932HL6ESIEIQgFVuMX3q3+a37L1aVV+MT3qP5jfsuQYfpbpFRwKkdLdIqNUU4akpAu2LyRUNyEk4+hKuSbigZWtRU5Upa1FTnFARakukIkuEHcJxCcvaLlf4fBqaMwNU/ibeY5uuhHjT0IH7IxQdiRtsQuGmxL2N95gPtt9KVtMJu1IIDgbpINHUzodfYqit2R9CDscD3FX3StlZV1I2jOlAOxUCMUJaVc22/lIY31xu3XfxMwPeKHtUgoUrce0+KlbC+9EY9oHe0gjzAedN9KQXZDscajq6k3jlLfSEE8JmyRck4UF4OI1hwFF7LMxjLrdQoFEG2A559Yx7wk3zVyx7KDt2rOLrmTVvvdlKBOLOKN9th+8E3jaSdu0p/C2u4e349gWkNH2QAE45L1kFCP4m+KkGw3iG7cTuGJ9A7Uq6zm+0DHN1PMB3nzILRwBgc600BcKxuBu3MQXNqDfqKEYU11AOBKguFUwklmlDnEOcSC6gOWugAwpTLUrlwUsN0vcHBt1oYHEAubrvtLgQLt0VJB6Q6NbwpWmIeaxo+GQO8gelUOeB0ZE9dkMh8wHpVbndWRx2vce9x2K46LZyQtEvxIKdrjXwaO9UqPNSq0vim9/Qb3fYcvoNfP3FIPz6D53+Ny+gUiBCEIBVfjEP5qP5jfsuVoVX4xR+af1G/ZcgxDSvSKjFJ6V6RUYopSNEhQxePVCLvwSTilXpFyBnaVEz5qVtaiZs0HsScBIQpcIOmhPLBJR1PbUD4DvSFmdRwOWeOzA49i5iqQ6TIh7gWtFA0bGj2yREnYnXS5mw4bjiPbqV0t7n2uyGUva58Y5S5G1ouNvXH3gH3hzWh5cWhuDQ04lUN8uLZBqwO78PAlWbgrppkL3Mle8QSMeC287ky8tugytaHFwpUYAnHWKghT9Jw0deGte6Ot9yrT0XUr1HUVMcIDA+aTkAeRLuYHZ010riBWtK40pXFVueEtPtigm7REHihy1H0hRh0dISQG3qbKVO4HM9S5sltLcMx4blJRWlrsj2a0EM+ItNDVp2EEHuKVgsxeaNDnH90EqfZa5BgHupsqadxXklqe4UL3EbKmndkgjG2RwN0im3I+GZ6k6oGjYAuJrU1uup2BRtotRd1DUEE3YpQAXHM+YDV6VL8H7Jyj3SuGDaU7OiPF29VrR0RNC7sHpK0TgxZg4Nq8xtqC0ktaX0IvvvOIoG4VcLxGoG6aUS1vs0bLKIzG0vddN40a9riXFxaKXnMoGtvVumopkVR2wcta6N6MLanfi0ee99FTmntOER8o6l6hDWgYCuZDRr1nac8SkdG6PMNnbGcJZzV/7gpjX+FuG8oIfTs/J2SnwrRKXf02YN8K/OVTjzUnwn0gJpzd6DAI2D91uFe1RsWayrTOKT3/D8/8AxuX0AsA4pPf8Pz/8blv6sQIQhAKscYnvT+o3wcrOqxxie9P6jfByUYfpTpFRalNK9IqLCilWrmQr2qTe5UJvSbl2SkygZWtRUualbUoubNB7Cl0hClkHbHUQyUscTm12e2u31riq9BQOYcWktxA1bAuoJKc0nD4Pq9vQkLNPcNQN42hL2iIEXm4tPe0oFCuHCuBxSbJtTux3rSpRDY2PGox6svOlHWdmurD14efJKgpVshGRQNxYXfBkw3r11h+PJ5/WUvyg1tYd7R6l6JKZBo3NHqQN22VvwQXdervyXMNkDcTifMpvQuiZLXIWNcLwDTzrxwL2sqKClAXtJqRhU40VitdhsVijqJRJaC0SREi/dc2poYw0tFSGAh+IvOo6rMQjeDOgxL+Wme1kDHVfedQuult5u0DEAnPHCri0F1pzhDG8Mjiay4xrOdydx1WggMFXOIZSmBJNa40AUNwh0+61Fpc0NDakYl5q4NDnOe7F2DWNFcgxoqczBSTXupvj6ggsOjpRLLy0p/Jx4tB1uGR3A49ZpsS/CHTLmsdqllF0D9nF6HH2yUXZBybOUeMhWOPaQMHO2DYEwnjMj3Oc8lxzwGezPAZ4dSWqYJSJKCzc29WudKCowpme1JxZqDS+Kb39D877Dl9AL5/4pm1t0Pzj3McV9AKoEIQgFWeMJtbGep7T4j0qzJvb7GyaN0TxVrhQ+sdYzQfNulDiowFX3hpwFtEBc+Njposw5gq4D95gxw2jDcs5ntYYaONDsOB86inZcknOTV1vGdRTakTpBvxh3qh45y4cUzNvb8Yd4XnlzfjDvQe2kqPmCdPtLT8Id6WsGjJbU8Q2aMzSuyazGg1lxyaOskBBGxmiVvK6jib0sf1UQ/rMXXuOaW/ZRfXNQUe8vC9Xk8T+lv2MX1zF77j2lv2UX1zERRDIu4bWWnDtG1Xf3HtLfsYvrmLz3HtLfsY/rmIqniRrujh+6fQvWEjLuPtgrd7j+lv2Ef1zPWl28U2lxnDEf6zEFO5Ua8PDvXbXbFYtJcX2koBefY5HDWYrsv8AbGS7zKs2mAxmkjTG7Y9pY7ucAUQsHL2+m13r/uPrRTae9x9aByJ7uIcWnKoNEiZtg7TglLBY3ymkMb5TlSKN0h7mAlWGDi90m8Xm2GWh+M6Nh7Q94I7QgqwaSaZnZq9t6U5dkWJo9+ofBbv2lWSbi0007AWMtHVNB48omvuU6Y+RH62D/wCiKrUtrc83nOJK8EnXn1qze5Zpj5E76yH768PFhpcf8J/04vvoK4Dqr50rE1Tnua6XH/Ck+lH95dxcXWl/kUvfGPFyC2cUXv8Ah3P/AMb1v6yjim4B2qyy+U2xrYyGkRxhwc6rgQXPu1aKAnAE56qY6uiBCEIBCEIBJSWZjjVzGk7SAfFKoQIiysGTG/RC68nZ8VvcEohAl5Mz4jfoheeSx/Eb9EJZCBDyOP8AZs+iPUu4oWt6LWt3ADwSiEAhCEAhCEAhCEAhCEAkp7Ox4o9rXDY4AjuKVQgg5OBujnYmwWQmta+TxVO83cV3ZuCVgjN5lisrTtbBED33aqZQg4iia0UaA0bAAB3BdoQgEIXE0rWNL3ENa0FziTQAAVJJOQog7QoRvC2wnEWmIj+Jdt4UWM4C0R13oJhCihwjsh/5Ef0ko3TtmP6+P6QQSKE1i0lC7oyMduIKXbIDkUHaEIQCEIQCEIQCEIQCEIQCEIQCEIQCEIQCEIQCEIQCEIQCEIQCEIQCYafYDZpwQCDDICDiDzDmEIQfPdildgLxpR2s/FUnHO4gc53RGs/HB9A7kIQSNmkOGJ6NM9ylrAKnHHf1tCEIJmGzMMYBY0i83AtBGR1dp7080fYIq/oo+hToN+MepCEFr0dE1sYa0BoF6gAoOkTkEIQg/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExIVFRUXFRUVFRYVFRUWFRYXFRYWFxUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFxAQGi0fHR8rLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0rKystLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAFAAIDBAYBB//EAEwQAAIBAgMDCAYFBg0DBQAAAAECAAMRBBIhBTFBBhMiUWFxgZEHMkKhsdEUUnLB8CNigpKy0hUkMzRDU1RzosLD4fGDs9MWF2SEk//EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAJBEBAQACAgICAQUBAAAAAAAAAAECERIhAxMxQQQUIjJRcUL/2gAMAwEAAhEDEQA/AMjhmIceMujGutQAHTqg/C1L1B4y26E1JdTc/wAaz33/AK01DFAgXMmgZKeq98OldBMsoop20UIUgPrSxID60BVhoZkNpUjci585sTxmY2oBcwsCNoYY06fOBjfvMn2ZyjCgBzrLG06OaiB3TOVsPZgJvGRvDGZdNhR5Q0ifWEP4PGo46JBnmi7NzawxyWriiWHbNXDc6PLhMJu1vIoJ/hgRp20Jy5RMPHlnN4zoXqbosPugNNvBmy2hrDnSa0zZpmOW29IP5OW6XfL3Lc+p3wLsita/fIjSPoDcwdUoceEkJzcZ0PwgMoUxrpGPRFzJhprO2trAZhqIU3MtsN5vp1So3S0kbuQLXgUMGR9MFp6bT3CeXbL/AJ2J6hTOggOpzpjUOkynKTlguHcIAWPUOA7YGqqJcWlDHYYIhImT/wDX4FsyNbwMmqcu6DqRqD2gy2WfJj2io7da/RHGEMbtN1S998yuFrhrkbifvh3lhQy0Vb84D3GcpbXry8eMug7a9DQVCbnMLwls51dbAcOqU9uUbUFPavwMucjku1vzD8RN6eWhOzLjHFOAPxE9KTdMOlADaVTuX9kTcCUtt+XnOAHTEMUh0oG2ZVBqQxVexj7n+N5/Ymu9e+GTuEBU8KxAbPaTkv8A1kjmImcg6z/XnQr/AF5QRkLetKuV/rxvNPe+eBcY6GZfaQ9Yw5zDnTPK9XYxYWLyLGYp41mGU9cDbQdg9xNzT5Jjg5nG5FoxuXPum8bJ8rKxNPaTgHSFNksLX64fPIunaxc+cfQ5Iog6NRvdOuHkxx24/k45eTGSKIbSDNsbQ5pNN81K8nQP6Q+6VsbyNSr6znwnl4vZ+P5vX4eP2wOG22wqKx3X17p6vsuuHpqw4iZY8gaX128xD+AwDUUCK9wN15024W290H5b+z3wDslrXv1zV7W2Ua1sz7uq0oLyeCH1/hIhUGnDVUS6NkNweVTyaJJ6ZgMDDvkgW2+KnybcH+UvLR2XU+sIFY1VGsz+J2/TBYb7G0P4nYVRgRntAzchD/W+4QK+wMSKmIVhPVKZ0HdPPdl8lmouHWpe3ZNUMXV7IBdz0TPF+VYP0l78bT1A4yqQRpMntPks1aoajVLE9QgYzENoBIqIBOs1rciG/rfdM7tDAGg1mN5bd1JNRJhK5FgOsT03lUgagv2h+yZ5XhW3ntno+3ceGw6261PuM5609PO59IuViH6MAoucy7u4xnIt7Pr9Q/EQqlnp667vhM9Tr83UJGlribcBTMP4Qc9ap8JrhPO9m43Piw194HunoSnSEjzPZQ/K3hjFvYjvgHaW0Po1XRadQqbFWZ+q+oUjThvgzGcpatQ3y007FDW/xsT74n06eSy709Qw5uo7o9aU81w3K7E6DOoH2Fmx5P7Wap/KOp/VX4Wl05jXNidFMR2zRTepZn06gw+MDctsacP/ACNS3flb4iTRsZSnc2k30MzzDB8scUHBNRLXsS1PQfqi82NPlFjGwy4hUwxB6lrA+N3I8rTnnM/+dLND4whnThGi5PbRNegtRsuY3DBb2BB3a69UJAzzX8jOXVjXGKSU2ElZDJTOMdJqeeteuKxpzppWkoj2bSdZ5K36oqGnedtOF40tNTNr0x10kYQSQmNcgRyX0RGaQjXpidNS8YxmpT0Q5QBOdojROsdJuQ/TxzMZHUudxnTEonWeOVf0+JaxjC8kaNM36InohgpznNyUC8TYcjjOXkw43pw8mExukPNxvNx5WRlZzYOy2nmnK171yOqelsdJnRyUXEu1RmI1tp2QjA4era/bNdSqF6SjsELJ6PqXFmPjC1DkzTQWBNu+NNS2K+y3GUju+EHbSprkY980mH2Qi313yOtsZCCDumbKss+2F2BhGXEIx3GeoJuEDUdi01II4boZEsTLW+nixSnVaq9TEIhzMy3SqS+u4ZQQviYMYeMM7YpDDYmrTXVQdB2EA28L2lNseD7Pvktv9EkRYBqYcGqpZLNcKbG5UhTfsbKfCNw9PXXMvaFJMXP9kt0NpBRbKT4xu/0aivSquraMwHXl18jGYmuzHVie8W90lrYsN7JHjKjSy37TUcmjwOPofRmRhRRwQV6OLzv+klXIPFYCoV8vC85XrZjeO9q9E9F+0QeepXtucLZjpoCcxPdpN0cSJjfRlgUXDNWA6bsQT1BdwHvM0T7558vFjnnW7NYyrjVxEcQLTqbMci84+y3mvRinsqLnu2derOHZbCcbANNTxxfbTM0ax1j1whEY+GN5rhF92Rt40xc1aMq6Rxi+/J0GKQmoBIvpSjjLo9+S1FKDbTp9ciO2qQ0zTW19+QqY0QRU5SUF3uJPs/bNKsSEYEjfNzyWJ78hKnTJkjYYx2E3y1M5fk5yu2Gds2oNQI1kIrMT1QhiN0HiZ9lz7rh5vkiY1RrOicXfDkbiGsJLybS6t9oxlXdAx5QnCp0aXOMztcElQALa6A9cqNrzQnDTExVLl5VsXfCE0xa7IWOUk2GYkW13cIRXlbmXMtI2IuD0reJtpEGjNMRvNCZ88qgRoFU/nsbfdJNlbZrvW5qrRp5WUtTqUagqKbbwwW5Um/G3qnQ8LoGmpiNnalcC4OhGhB0INr2PVoRGZpB4ptvGc9XqVL3DMbd24e6UZf2jg8jA30YX4XHXInpU+DnyElqxVnQ0k5sdfvEs4PZ5qGy6n7aD9oiNikTOQo+yrNl1v9qmR5hrSpXwxQ2NvNT8DGxWl1tq1igp5+iNwyr8bXkKqnHN4WkzYBmuaasQLb7XN+q28d0o9G9GdZmwrgm+WqwHYMqG3mTNA3reMxeH2h/B2BQKS1WuXcGwKoy5FIIO/S3jeCsNyyrm5qVrHhlpIdeF7kafjXdOWEtyt+mrluSPcaLgICSALDebSLE4hFGYsAvXfTfb4zw/avKqpiAq1amcLuHMrY77HLntmAJF7cZWobXpqUtmUIzuMqC7MwA6V6ltLcAO286sPW6nLDAk5RiVJH1VdveFncFykwtYlKddWYAnKQ6mw1NgwF54pQempuHqcf6NP35e2HtSnh63PdNzZltlVR0ha/rG9ur/AIJXqu2cZpzS7zbObkZRvC950v2d5sEGHW+bLr1633de+C9l8oxXqClSoVXdszaugvlBd2LMQNwYkky/UxFYW/idTpXt+VokG1E1zYg6jmwWvL0iR6IPD3mS4NBTYOqrcE6EXBuCrA94JHjG81i8wX6C9ybAc/Qzfyoo3tm3c4Qt93hKtbaFVMP9KbBVBRyo2fnaVstRiqab9Sp4XHHfL0CeNQLuJKsMyE77bip/OU6HwO4wPj8UlKnzjtYZsgFmJJtfSwtu6zKNPlxRIKNQex1BzqSr2IDAWFwdARfUdoEF7X2tSrJzbGotnz6UhoQCtrGtb3XmRI216e+7W68pixVMZVqq6ur3tlDggra4bOo11G68D/xewGet/wDmn/kkz46mtJUTOQGzAsArDrsQzCx09ngI0INo7xDfIE/lX7h98C7SxSVOkiup0zZ3VrsbklcqLlGm7XvhjkEfyzdw++QanH8qqeHqmkynNYHNplBIJF+PlANX0h1wSOaom3EZ7HzMHbbrl62JY0s2gVSVzZLW1DK4ANuPS7hM2TJxlbmdnUbajy9rPoaVPwzfOT1+U9QU84VL9oPzmOFVAEyKSchFTMLjPnfVbHdkyeIMZzzMACdL21AA85qSRm21pMLy5qBhno02He6jzBvNDs7bQrKxUXIU+qSbkWvlDAG2vGef7FcLiKZIpkBxcVAjJbcbhyFOl95tumvfCc1jhlRglUFR/F6eGBD6jIFqPpcAgg66dcABTrY9Sz06mKF95Tn1zA8CRB1ajXc3anUJ+w1/hPXMNyMxoTOaVWsL6WNENbhfnKi+6DzVxVJipwdVddLij8c9pN0efbK2biGdVWmUPSAqMjKBdTfM2U7xcDTjJf4OxRGuGqn/AOtr+tzc9MobRxP9lq+eH/8ALCFPH4n+z1B3tQ+6pG6ajx/E7HxNh/Fquv8A8cj35JQfZtYb6NQd9NvlPbMRtHEW/m7frUf34Gxe1MR/Zb9/Nn743V6edimAqqHr5ja6/R1Avusrl7sPAd09H5L5hhkDBwRmH5S2f1jvtu+Qg/C4qvVqCmcGnSIA/JhibncABbzImlqbONA82yhSNSBltrxGXTyllt+Uunke0zZx9lZTJl3bCdMfYX75RtCEDHrGZTJEEB6tI6pj5E8CMy7QJ4SiZaweLNN0cWORlaxO+xBtAJcp0K4bCU2BV1OILKd4zOhW/eJm5puVzrUTD1UzhH53ItRszKAy3BY7xcm3ZAlHZtRhmAFuu4kx1rpVZVvxt3xZe2X12dWG4gdz/KI4Csd7cOLyits/Dc44UnKDvY7h3yF1sSL3sSLjj2y7T2ZVGoIHbmtvmg5HbBwpapW2hVK0KQ9Sn69Z9DkU+yuup07xvgZ3ZO0KtCpz1E5XVXGawNg6Mjb+NmM09Xbm0EFOg7Ug1jTBIpM63QUC1RxfK3NnLmOtrwRtza4qMUo0Vo0VYlEsCVvxYkamwHCUaNVfaq1R9hVI/bEDVLtzab1iy11Lpe2lNUNsQtYZLjKSamUgb7aboH2ryixrUWwtRgKIOUotOmEUqw6IKjSxQaSpSx7J/J1s4+rVUEdxV8yz0DkNiMLUdlr0lw1wprEDNh2UHos6OS1JdfXBKa+zoDUeUgQ7s/DYR6TPXxTUqgLBaa02fNoLEkCy630uc27ob5s/StyMwlB+ewLWGpq0b3VeOakx9k9XlpoPO8NgDUGYMBrbW9+vgI0o/g8FspzZ8ViKQ5tGuUznOc2dMq0+Fl1v7XZBG3aVBHth6hqU7KczA6MR0lBKKWA68o39k4uyG+svv+UVfZjAesPfILPJ7k7UxSPzb0wVZRZyw3htbhSOMIckaJpYislTolAVfsy3vr1dsp7E2rTw6VUq0BXDMhALFVBXMQSRrwEl2Hi2q1MTUa13puxtu1DaDskAathls7h0IzkKpbpka9LL1bvOU5yKUXMIVOhyDTe2f/KDG1HGU6re+7pX+FpVik0HKLm17XO87vGEdj1MuJp6jR7Zgd/C94MljZ6g1UBFwWFwe+Ue1YOuxHrsf0j85dLGx1PmYNwuHpFRehR3f1VMHzAk1PZ9IbqYGvAt85lVtn13++OVu3hIloqNyjyv8ZYU9i8PZXj4QE/HwkJ4SSoAeA39QlV8GhOqKfAQO1zodYPwQ0b7R+AktfZFAg3oUz+gsZgtFygABTlUKoUAWGgAFuMsSsJt3Ag0RV9pLb9xBIuCIHASqQlKmS53Kq6mwubdc2/LNVTCVLDeVXuuwnnKVyhDU2dWtqQcp8CNbSXHayrNTZ1UJzhpOEyhs2Xo5WICm/UbiNpUnCCrlIpk5c1ujfXS/X0T5SJto1ipQ1ahUqFKl2K5RuW17WHVJMbtDOSEBSl0SKQYlAyqAWtuuTc/pS6NrS0mNNqoUmmpys4GgOmh/WXzlCpWU8LxLi2AKZmCHUqGIUnS11vY7h5SuZJibWaNZAdVv4CXFZcRVo0lXIpZVJsL9IgE+UoYJqYcGqrsnFUcIx/SKtbyl9MZT+k03o02QB0sKlQVDoRvKonwjX2WtL6R6C0xhUQWVVqADqA5uV9i1xzO4G2+4++XPShvw/dV/wBOAOT2IsxU7iLfKY8P8Yxj8CmJRSMy6DiLbvx5ymD+NJTwmMOdhfQmWX/HXre06qjxdYIpPG2m/QypgMXVJULct6tMbyCTdmXqa5vn3jhbQiLabkkDrl3Y2KWlnqZbtbLTPBbHU24knXsIElumpF6pgqGGCmqRUqgglNDTA0JWw39/fEvKR7WSgMtrdFN3bcC4PjwgnD2ctUq6ga26z1TtTajEXvlHAADdMKJVdoYevcVaIR7GxQBDm3i+neN9tb2jaterh0WjUOalq1CoNWpMws2Rt+RtQyeq28CC/pIqaPr1G1iJYXGsaLYd7EZrgnep616tw/BMsuixb2dt6ooyhrsgORW1UrYh6XXlsTbXdcdUpbKJ1vpms3AXBuL6cOz3QUrFSDxBv5S5gWtWsNxOlvMCbZHgD2fIdf8AvpIcSdN2gv8APfJM3DUeOvzMixTdHf1/j/j/AHig56M8HTq1qq1FDWS4BHUyC/vm22zsWktF8iAEowuABvBExXol/ndb+5/1Fm75YVwmEqsTboML9pFhbtvCPBvozWJykAGxNtL9V915DCdHAYioq00BfNd1pjfYb3t1ae6U2wbimKpU5CcobgTrp/hPlCu0cG7+qL9g1PlGHDmxOmnaL+U1uxMLj6TlcCHF6NJ6mYUgenTVmtzg3XJt2QFisPiTUqo9M84oZ6vQTMoABZiQNBqPOALAlrZ6Wq0/tqLcd/ETgwFXm+eyHmwR0xuBJIHdqDLFXCujqzuoqFlIBzE8CrXAykG44wPX9n+qO6XUEyGD5Qsq+qDa2gNzNDgtpZhcru10nNsQtvj7fERU2BFyDx3b9L/KX6dBCL2bgd8bNKDD4xltYQrUkHA+cF4nFqvseZjaaKsNPCDsOPW+19wkOK24dyoL7t9zJsKDluRqdTNTtKxG2uUaYmg9IKb2Da6Wsw1mUq0DddCobcWFlPj1ds0Q5IVR7XlKu3MKVRFJWyDTpHUaeyVAB8Y3r5JGfjkW8mwmHDuEzql79JzZRYEi54XtbxhKrsQ01zNVokZsuVXBY2YrmA4jQectqBYpiRPvhN8Ko4yrUoiZmS6VQ0vbD1xNH+9p/tCMo4e59W/n900uw9mKK1J3VVVSXPWSo6I8yD4SZZyFxul/0nG5w/dV/wBOZTZp6XgZpPSFilc0MpvYVb+PN/KZnAGzTPi/jGMZrFHs8/lb9p67wnXbU7u7v7L6wNh2s/nwhKo1/wAaHs1HwnZpVx9M6N1DvldH3L+NZdY6EWHxt4+csbIqXpvhiCTUK83YgAVFPRZiTbLYAHS+lhvmftVfD4YvQq23oQxH5ulz4QWTeaXZNZsPV5zJci61KZ96nq7D84TfYOzcQS9PFNhSdTSqJmVTxCm408TNSJth10lmgrubIpZjewUEk2FzYcdBDePweEoArSZsRU+uy5KS9oX2vMyDZqimlSo1wzJlp3utw56VUG2oFuB+MlhKEc0T+OuxjkFqgvwt8BLdPDEjq4m/C+4eUhxNQcBax/4mZl3pqwaS34sPD8eUZjGuvE9vylhBSFF6nO5ilSnSJVgLl1qtmRWF2UCmNTrc6XlStUuDbXtFtb7jNMj/AKJm/jlX+4P/AHEh70uZ/otPLe3PDNYXHqNa474A9FH88q/3B/7lOar0nYZ6mCIRSxFRGNuoXuYHj9bF1Da9lIFgVRaZt25QLyuXNstzbqvpx4eJ846tSZTZgQe2RgSgps7lBiaBJp1WBIAJJubAWA17JVq7RqsWZmJZr3Y6sb6EX7tIU5QYKhTdVoGobrds9jvPRsV7Pu3G4AoIeo++Tktmuqj598uTM2X6tzl339Xdvl5toVnQKKaHL7YoIX03XqFSffBrAx9KgzaKpPhKj0HZNVSgzKT4zTbOFM+z52P3TN7CwxamLC/iPvmlwVBl3i04ukGKNJCLWGotuEKU1Xq9wgmg0JUXuN8sHa6Jb1fcIHxa0vqH3fKF6ym24wTicOx9kwA+KqU/6s+LH7pLQ3DhFiNnufZH6y/OdC206pcGc2BpcosQXy2Ej2htSqrEs+UkDo2DDS+uoM9LXY+GBuMNSB68ovM7yw5LmvlagEUgWK+qCOu9t8mWcqzCx58dsVOtD30qX7stUdv1dLmmbCwvRpGwG4C66CWX5E4wewp7nWcXkXjeFIfrr85f2p+45eUFW9w1Mf8AQo/uQXitp1WbMWF+sIg+Cw1T5EY8/wBCPFxLCejzHNvWmO+p8hG8V1WfXa9bcaz27CR8IV2QSUJJJJYm7G5O6FcN6MsTfp1aKjszsfgJvtlcnaNGmtPKDbeWAJJO83MxlnPpvCWXdeSbd9nub/LB2AIz69s9D9J+z6a0aToFBDMDYDXMAdbfZnmmHr5Wva8147uM+T5NHreMJ5uN/fr+N0EM2t5YGNPV7zedXNPiDofP8CcwmIFiGF7+YPBh193+xlc4s2tYdUrg2ksIPrjVdhzhOYXBqL/KNcqLszeuFUWA87yxhHBUZqqq53g0auh3espy9Wukzy1/wJJ9MPV7hG6vS/iwOld9QwyHLlQgWNyjdInfoZPWrPXbM+7gu7Qbrgeqo07TaBxibbgAeuMbEtrqQDvmbLV3BDE4oAEA367cTKDayEGODyzHSW7ToqhSGzZ9Mu7LY778T4QjTpWXXsAHYAd8pjaJ06K3HG5vFV2iSLWHmZUbD0V1LYurfjQP7aT0ba5D0mWxNwRa194nm3owzCrUqZSegFG8DVgT+yJ6UuIbsHmfvmLnrpuYbeDYwICQAR3gSoDPQNr8gmeoz0qqAEk5WDaX4XF9ILPo+xX1qJ/Tf71jHKa+UsrN0G/FpKz6afCaBeQWM4Cme5j+7JR6P8cfZT9Zv3ZeU/s41jnYyzgGW+oJ7pqP/bfGcWoL31CP8sLbE9H4p1FevXpsoNyiZyT1dLT4SXKaWY3Ydyg2hXwdVFp2RWpg2KA6gkE/CVV5d4scKR70P3NNF6TtnGqKVSmGfJmUhVYmzEEHQdh855rVosvrKw7wR8YmqXprR6QMTxSj35WuO0dKEsL6RsSBpTofqvr/AI556DJFqdsvFOVeiVfSTi7epQ/Vf9+UX9IWMPs0B+g378xnPDriR77pOLXJ6DszlHiqzBWZBf6qAXPAdImaYYaodSpvxmJ5BbLepiEbKcqEMSVYDTgCRYmetLhJiXitnJ18Mo9hj5/ORFRwonxEMZZzLOG3bQRzj8KVvAxpet9UjuWGbRWjZoDy1j9bytGtQq/n+Zh607ljZxZh6DcS3mZ2nhj+BNMFjubB3xyTiyeLwuYWIBHURceRg19g0Tvw9I/9ND903FTAIfZ95jP4OTq95lmScGLTY9Jd1CmO6mo+6POzKf8AVr+qPlNj/BydXvM79Ap/V95l5nBizs1PqL+qvygbanI6hWNyWU/mED3EGenfQU+qPfHDBp9VfIRzODx1vRzT4VnHeqn5Ti+jUHdXc91MfOezrRUbgPIR+Wa9tT1R4/R9Ft/6R/FVX74Vw3oypr7Y78tz5kT0rLFkmbna1MJGHo8gqI9Z3PcFA+Eu0OSFBPVHiQD8ZqubEXNCTkvGM+NgJ1/4VjhsJOs+S/KH+aE5zQjkcQilsdB7TeY+UdVwCAaKzeMKiiJ3mhHI4szUUjdQ8wzSM13G5QvcgHxE1XNjqitG04socVU+u3hp8JGajHexPeTNhEV7I5HFjgTJlU9RPhNVljgJeRxZU0mPsN5GdGCc/wBE3l85qwIrRs4s0mw82+mB32kq8l6Z3qvggM0IEeBGziAJyaoj2fco+6Tpsiiu6mPEX+MMGRsI2aU1oAaDTwj+bk9orQacyzhWKKc3QrRWnYpULLFliihSyx2WcikHSs5liigLJO5YopRwrFlnIpB3LFliigLLFlnIoHck7kiilHebi5ucigdFOdNOKKEcKTmSKKB3JFliilHMs7liihHQs7liigdAjgIopR23ZGlYooDQs7l7IooH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxATEhUQExIWFhUXGBcWFxcXFhoYGBgYGBUXFhUWFRYYHSggGBomHRcVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGy4mHyUtLy0uNzcrLS0tKystLS8tMC0tNSstNSwtMC0uLS4uMi0tLTArLSstLi0tKy0tLS0tK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAABQYHCAIDBAH/xABWEAACAAQCBQcFCgoHBQkBAAABAgADBBESIQUGMUFRBxMiMmFxkYGSobHRFBUjM1JTcnOywSU1QlRigpOis8IXNHSD0uHwFiRDRLRFVWNkhJSj09QI/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAECBAMF/8QAMBEAAgECBAMGBQUBAAAAAAAAAAECAxEEEiExE0FhIoGhscHwBTJRcZEUktHh8TP/2gAMAwEAAhEDEQA/AJxggiE+UrW+omTmkSpry5SEqBLYqXKmxZ2XMgm9he1rQBNkaamqlyxeY6oOLMFHpiqFRUJfpuL/AKTZ+W5jQ0+Sfy0PlEAWu9+aX84k/tU9sb6aslTL83MR7bcLBrd9jFSmeRb4xD2Rr5+UMwy+QiITuWnBxdn5p+RcCCKgLOB2G/cY2TcgL7SL+OwffElS3JcDaR4x5zq/KHjFR0pUbNlB77R3SNESDtQeiALVc6vEeMZAxWan1epTtl+kQr0lLPpPhqGfMluvS5stilzANqsmw37fJY5gCwcEJGqmm1raSVVKLY16S7cLqSrrfeAwOfC0K8AEEERByr60VTTzQ0815UtAvONLYq7uwDYca5hQpGQIuSb7IAl+NT1MsbXUd7ARV+dTTpmTTHcD5bs3f1jGtNAjco8BAFnX0pTjbPlDvmKPvjUNP0V7e6pF+HPJ7Yq/pTRolIWIHh/rthGxS0tiTExFzsyB2QBcSVVym6sxG7mB9RjdFNhVU++T6Fjqp9KSl6vOp9Fiv2WgC38EVJ9+1O2oqPLMmH+aN8jTuHq1tSvdOnD1GALXwRW6Tyh162C6UfLLpLKbxLyyTC3onlVrFZcdTJni4urKik9gMvDY+Q90ATtBHDoXSaVMlJ6dVxex2gjIqe4gx3QAQQQQARWHT7kzSey/3xZ6Kvac+MPcPVADf0VoxJsszXxEkm5vl5YVpOgKe2Iy2sTa+JrX3i+y9o91TQmQuR2tmB2+uO2hMwfCCZMU4mGG9hllcYdx7f8AKMkqklJtPY9GlSpSglLdrxFbQvJxIqBjCOENwCHuSRuALDtz7IQdIahPz09JZCBGcIrucWFPyj0bG+0Z747KfTGlJQmGmqSAOmUCqGckWJyXpEBRttu2xwztOVDY50wh2DnFMJAIAAtYE3O2wsDGjEVZzppwSXcZKNGCqSjNt6CRpGgSUKaYisvOhsVySCRhBwnhcn0RlpI5+RfsLHul9Jc8KUgWwlwVvezfB38QB6Yx0pt8i/YWO07X06eRnjsZy5kdVPVi9hcnshNmnok98YUs3C177NkULjto6rvy2g7RC1TVWyGrM0kJjqwFjhs3bbZHfT1OyBBLnImfwYOybN9YP3w/YYPIn+LR9dN9Yh/QARAeuRvpCo+tPoW0T5EBa4fjCo+tb1QByaNRC6h8lL9L6OPPPdlDhqadebc4JSlbW5t8RzYDPPZYw26FgCL7MVzlfLFw3wsza4MpVURb7cCYbgG4BNz2QA09dj8GPJ/NDKruuf1fsrD113+LHk9bQyq7rn9X7CwAsaL0LImSVmNNKuWIwBSeiL2a/eALR1U+rkhmIM1wNg2X2/RjboCWOZTy/aMd4eUjYWLZjo4QDY5bdxFjsuNsZXWcZHoU8KqkUubPKfUGVMw4KhukyqLhT1vyiBnh4mODSGpglVD07T7FHEovgUpjZWZVFpuI5Kc8NgbA2JESBqhpzRspnWfPUMGAVsMy5BW7KVtdbHadhuBe4hCrhSuWEpFIM7HKmYbMV57Ex2A4iDv4Zxrq14LI4w3aTMMKE3mTlsrjcOo8zdPQ/qEfeY4dL6qz6eWZrshUEC3SDXJtsK29MPmqeWtwrlrWsbWGzpem3fCNrBMLUs0E5AA2J3412dsejUwsMrlExQrSzJMlvkQns+jVxG5Dn7CGJAiOuQn8W/3h+wkSLHmmsIIIIAIq9pz4w9w9UWhir2nPjD3D1QApcnOiOepQcYHSbIg2vitYkb7esQoUujpb1s2hMwCYOpazYgq42xYT8HbFvOduMNfVhZZpZCSprpVzKgSi2J+jJfEGCqDb8oE7zfbnC/S6JmaOeqdJ687KEt1xWCzUJJdQNuMfJzvcb8JGWUVd35mynN2XQ16e0f7jLNOYAWyCm5e+wDw3wwaabiJUsQWvhULcXIINjuy3dsPTR+lKSbNerr5pmsGvLpQmO7kWGfVw5dRiLWz258WkqdHf3ViQPfDzcuUZSgDK+Bhcb7nLMDLcOkXlWU4zjxJZhtTqd15kuCOkygEW6uC/f1hHXpTb5F+wsLeuui5kmXo8uR8IJjBbEFb802d9/SEIlSMQHEADwyHoi8JOUbspUSUrIwU7jsjS1NwOXjBZo96XCLlDopgFjuSfshKBfhG+SHY2tAFgORP8Wj62b6xD9hncksjBo2Wv6c2/fzjXh4wARAeuI/CFR9a32YnyIZ5WdBT5VT7tSWzSZuEuygnm3UBTjA2KQAcWy+IG2VwGpLvuNrki/ifujJqhlAYMTYqCCBmCwU7AO2MVawB7T2fKAz7yI11DdG1tplgZ3J+EWwgDm13+LHk/mhlV3XP6v2RD1146g8nraGXWKTMNv0fsiAHjq3IJp5ZDWviGw/LbfeOx5LB73ywhbWO0Ekk+T1mOTREhvcshxO5tQjvhw/GHn5qhSTu6A2cT2Q6tN08iVU0kvNxNLK0tbtNGIqqMAuSqCWuTe4BtxjE08zt1N8ZrKr8rDRqqCXMx4smCkq1zlY3tYbQdns2wjtUlVlshbGH2XGEDGSLb87AeMPfXahl0QLlg2JTza3sbm46XYMzccIjymllwyqpLg4jewG4WHlvl29kd6dnBX5Geq3xHl5jrppmOYRY3wKR2XOYPiIVNLU2DR9VMP5csIuR+elEkeQW8sdDhkkrLvcy0CAX6pts8Re0JOsFW5oXl48SBZZbMkqxdQUzAyvwyvby96ONzKcXzfn7RWthMuRrkiUeQj8W/3h+wkSNEc8hH4t/vD9hIkaIOQQQQQARV7TfxnkHqi0JMVe00RzlwQRYWINwRxBG0QBwat6XqaB2MqTKmhgy9O/VYqSCAwv1Rtvv4x5pXTtTPfnPcspGLYiVZiCbAEkO5zyGy2yPZYzHeNuzbv7IctRoBg4HQxOWscV7WAawBTDawI2b4rlW5bO9hiy5k9QQslLk3xGzMMrWF2sfKLx3ytMT1eW3uWWVQKMBZiGsNrkvdrnM+GyHV7yTCzS15oBQAb4jfHiN8rC/kysOwDkn6IYSXnWSwDmwt8pgPyL3GQ2i9u03OKe4U5LZiZrHrFV6QmS5lQkuWsoMESWDta2IkliT1V8NkcGGM4LRKViG7mvm4xsL2+4+vyRvtGBTO+W7juv29sSQeIgOf3R0SRYjvjCWtgBwEbZIzHeIAsLyZf1BPpzf4rQ6oa/JohGj5d97TT5OecfdDogAjm0l8TM+g/wBkx0xorULS3UbSrAeUEQBW+lZySAFwg2zJucr7LWtnCjIlsMwiX43t/LCRQ1SBnQsMV72vnYquduEK8mcOMAIeubky8xYiw233E5eMNKb8Yf1fsrDs1vzRj2r9m33Q0KhrOTbcv2RAD61dPPUciW6KZFMsybMUsVaZimzmADDZbm3a2V8AzNwDjL0XOkiTpCdOJeZKZ1O086oASWxNzcg5EdXD2ZtrRVbIUS0d3VcxNC4rPd7jGAcwBbIcBvzLs1y1n0dPlqlPMmhUFllc0VQdJTdWv0SACBlv27LcXvouZ3vbny0+9jipdYWn1ZqqgyiVF0Sa4WWswLhVwGya2Rw7yIwMkmfzwaUzzTiIlEGWpU5hVUdEZcT43huSK+XLD4cZJOQIULbdi33HAWGXg5dE610STneYtQyWIQKsvESRhLMC9lOG+Qv1uzO0lysc4N6tvUkbQujpcyk90NiLWfEOBS9x3Hb5c7w1NbKEJTTjkPgAbLsJaokkYuNhit9KFCg5WNHyZQkpS1BUA9bm7tfaW6W+G5rDr1RzaSdTSaSYjTcIxsynCBMVyN5t0dkWpxpxjJZdW1boUqzrynB59Enm66e/sSlyD/i3+8P8NIkeI55CEI0bc75ht+zlxI0WAQQQQB4TviB+UbV6nkvzlJNltL3yg4xyz+gCeknYMx3bJ5McU7RFM/WkSz3ovsgCqL1qDabd8ajXSuIi1D6rUB20snzBGltTNGHbRyfMECdCrnvhJ4iD3wlcRFnzqLos/wDJyfNjA6g6K/MpXmwGhWP3xlfKj0aSlfKizX+wGifzKV4Qf7AaJ/MpXhAaFZffGV8qPffGV8oRZsah6K/MpXmxmupGix/ycnzYDQrIukJfyoXdWKRJ81QZySkvnMmEAAfortduA2cSIsGup+jhspJPmCOiXq5RLsppQ/UX2QGgaBqKTm0k08xWWWoUANc2Atc8T2wqRop6OUnUlqv0VA9Ub4EBCfpXTMmn+MLC+eSM3qEKEEAVo15pKcVTz6YM8tyWA5t1eWSbsuzpJwts2WyuW21YB+RMHkcRbhpKnaoPkEazRyj/AMNPNHsgSVFqtLKUKHFnxvt8v+s4TPdEsgBr3GVxw7YuWdHyPmpfmL7IwOi6c/8ABl+YvsgCm/OSP0/R7IyEyRwfx/yi43vTTfMS/MX2R57003zEvzF9kAU9DSfkP6YzHM/NTPTFwBoqn+Zl+YvsjIaNkfMy/MX2QBUALL+YmfvR1UdCHYKKdhc9Z8eEdrZG47gYtwKKUNktPNHsjNadBsVfAQA1NRa6ilU8qkku7FRmzSmXE7G7NmMhcmwvkLDdDvjwAR7AgIIIIAI5dJaRlSE5ya2EXCjIszMdioigs7HcoBMatPaWlUtPMqZpsktSx4k7lHaTYeWIO1k10qapxPBaTkQiq3TRTkwV7XW+8rYtbM4bKoEy6H1ro6hSyTMBBIKzQZTghipur23g7IUPfSn+el+evtisAkqTcgk7SSzeUnPbG0SU4elvbAFm/fKR89L89fbB750/z0vz19sVkEpeH7ze2PRLXh+83tgCzPvnT/PS/PX2we+dP89L89fbFZzKXh6W9sY80vD0n2wBZr3zp/npfnr7Y9XSVOTYTpZPDGvtisZlLw9J9sYGQvyR6YAtSDBFb9B6xVNKw5mayKPyQxKeYSV8trxOuqOnxWU4m2CupwTFGwMAGuOwqysOGK26AFuESu1ro5RKmYWYEghVJzGRF9nphbisWntJT5dbVhJrACqqRa9xlUTB1TcRaOW/aOdTPbsW7yWNK8pTKSJNOLbmmP60UfzQl0vKTWK+J0lOvyQCnmtc28oMRxL1jmbJiI47sJ8Vy9EdlNpmkPWlunccS+gg+iNcOA9Dz6n6pO+vdb/fAmrRWv1DNADuZLcJmQ8jjo277Q5aepluMSOrDirAjxEQbQV9EbYCl91z0vB7GFmXNAsQbcDs8DB4aL1i/URx0o6TXoyXoIjOn1gqE2TmPY3T+1cxtncp8uT8cZRtuDYW83MnwjlLDzWpojjabduf58iR45a7SUiSLzZqSwdmNgt+65ziOOVPWqfTT5MtC4R5WMhXKG+NgdgzytDGOn6eb12dTxdcX7y3isKcZbyL1a047Qfv7akxztfdHK2HnS3ErLcgeW2fkvC7o/SMmeuOVMV14qQbdhG49hiAZMjGfg5kt+5s/DbChQ0E1GDrN5tuKMQ3otGh4WNrpmSOPmpWkl5eZPEERvo/WOslizTuc+mo9a2PphZptcz/AMSV5Vb+U+2M7oTRqji6b30HfBCLTa0UrbWKHgykekXHphVp6hHGJGVhxUgjxEc3FrdHeNSMtmbYIIIqXGJymaHn1GB2K+4qeXNqJi4jimTpaEykI+RexvfiOEQnOFllrwlyx4IoixGvxto2s+omDxUiK8VXWHcvqEAeJGwRrSNkAe3jy8EeXgD2CPICYA9jEQGPYAwMSzyN1Bx1MrdgkOO884rehViJmiTeR5v97nj/AMvKP/yPAEtRVjWf+vVn9rqv+omRaeKsaz/16s/tdV/1EyAE2CCCACN1NVzJfUdl+ixA8NhjTBEptbENJqzNFZpOomdec7DhiIHmiw9EcE0dE9x9UbDGud1T3H1Qbb1YjFRVkrEwcuY/3mm+o/nMRrEl8uv9ZpvqT9uI0iCQIjsp9KVCdWa1uBOIeDXEccESpNbFZRjJWkrjgptbZ69ZVYdl1PouPRHRVa94RZZLFu1gB4gEnwENeOOr60dViKi5nB4Oi+Xi0LNZrjVvexVB+itz4vcegRN/InUPM0YHdizGbOuTtyaw9UVwixnIYPwSn1s7+IYpKpKW7OsKNOHypIkCCCCKHQQtfJZbR1YB8xNPghP3RXWs6/h6otFVSFmI0ts1dSp7mFj6DFZ9Y9Gzaac0iaLMuV9mIbA6/ota48NoIAHGkbI50nCNgnLxgDbeAiNfPLxjITl4wBkYyQC4vxF4188vGAzl4wB24Zfygf1TGD83Y2YE2y6JFzn/AJeEchnLxjHnV4wBmdsSfyNSz7oqW3CRTjxmTz/KIi+WVJ25DadgA4knZE48lWh3k07zpilWnMpUEWYS0FkLDcSS7dzDYYAe0Vc1uFq+s/tNR6ZzmLRxV7XIfhCs/tE7+I0AI8EEEAEEEEAJpjCYMj3RmYBAEv8ALuP94pj/AOC3of8AziMolHl6/rFL9XM+2sRdABBBBABHFV9aO2OKq60AaYsdyHfimX9ZP/itFcYsfyIfimV9ZP8A4zwA/YIIIAI4NL6FpapcFRIlzVGwOoax4qTmp7RHfBADAquSHRTG6rNTsWYbeTEDHE/IvQbp08eVT/LEmQiVWt+jZbtLmV1MjqSrK05AykZEMCbg9kAMhuROk3VM4eRD90azyJU26rm+Ynsh7f7b6J/7wpf28v8AxQ0Z/LPSS6ibJenmtKRsMudJKzVmgbWt0bLwILXgDmPIjI/PJv7NIxPIjJ/PJn7NfbHf/TZoz5qr/Yr/AI4xflr0dY4JFWzWNl5pRc95fIdsAcP9CMr88f8AZr7Y2SeROQOtWTT3Io9OcMfS2u+nJswsasyAeksqWiWQHYuIjEx77/dE8ao1sydRU06Ybu8mWzm1rsUGI2Gy5vACToDk70bSkOsnnJgNw804yCNhVT0VPaBeHZBBABFYteR+Eav6+Z9oxZ2Kya+D8I1f1z+uAEGCCCACPII8vACeYE2jvHrgMey+sO8euAJj5ex8PS/VzftJEWxKfL38dSfVzftJEWQAQQR5ABHHVdaOy8cdT1oA0xZDkR/FEn6c/wDjPFb4sjyJfiiT9Of/AB3gB9wQQQAQQQQAQ363Vp3dnWvqpYYk4EFMVW+0LjkM1u8mEPlA5TKfRriQJZnzyAxRWChFOwu9jYnOwAOzdldsJy6y7AmkYGwy5y+e8A4M++AH0dUZp/7Sq/NpP/zRH9fyaaUmVM3C8kS8RZZ003aZck9JJagK2ZvkBwHDfR8uskzQs2kdJWV5gfGVva5aXhBsM72JOWQMS3RVaTUWYjBlYAgg3BBzBB4QBDh5JNJfnVL5kyCXyUaUQl1qKViA1lwzFuSpW17G23hEha0a90VDMSRNLtNcYhLlriYLmMTZgKMjtO4wlHlTo/mp/mp/jgCFNZcUqYTMLSZuyZJmJmGXIlGuMSm18rjO4NjFh+Ty/vXRX/N5PplgwgTeVCgYWaTOI7Uln1vHboXlIoKietKOclzHBKCYoAa2ZCspIvYbIkDzgjxTePYgBEGa36typtXUTA7KxmvfYRfFwPtic44a7RFPOzmSlJ+VazecM460pQi+2roz4inVmlw5WaK31eq1QuaYZg7DhPg2XphHqaeZLNnRl+kCPDjFia3UeUc5Uxk7GGIfcR6YQK/VOqQH4MTF/QOL902J8DGjhUJ/LK339+pj/UYul/0hmXT36EH3gvEhVGpcydNwSqJu1heSFO/ESMHktePNJckVci4pZV8rlb5jiCRtPcI4VKLg7XX5NdLFKpHNZru/gi+M6brp9JftCJB0NyP6Qm2M0rJXtuT4bR4GH9oPkcoZRDTWeawsc8hcdmw+AimS27OvEv8AKm/Dz9BO5btGTZ02maWobCky4uAc2S1r7dhiJammmSzZ0ZfpAjwO+LMax6ve6irCZgZQQOjcG5vnmCIaFfqlVoD0FmL+ib+KtY+F4706VKcV2rMyVsRiKU32Lx6b++4hC8eExIWkNWacmzyTLbsBQ+bs9EN/SWquAYlnC2yzgjxZb+oQnhKi1Wop/EaM3Z3T9/QbkclTthVn6MnqL4MS/KQh18Vvby2hKdSzYVBJ4AXPgM4zOLTs0bYzjJXTuaoslyKD8ESPpz/+omRCGhtRtI1Nubp2A+U2Q8vDy2iwvJ3oObRUEqlmkF0Mwm2zpzXcfaiXFrciNSMnZO/v8DkgggipcI8MewQBXDlI0eUrqlWmYmmMHxkC4xgWXuUWUdgENQ0C3VL5LiYcb4h7TD/5YNHTGrmJVgjBLMVOFrJmobZfL0QxvejZ0jltz7b8IAz0XogTpn9YWRidgzt1BYTGBPmW72iwHJlStKoZKFsQwhh2BukFHYL2HZFfveW5tdmuw6Iub5NkAM757u3jFk9S5BSlkqRYiWoI4WUZQBE3KmyLpV2IJbmZQJAyVbtYk8CeF9kNuccj3Q6uU0fhSZ9TK+0/thqzuqe4+qJIMSLf5xlouqRaunve6TZZxAZJjYIAx7cWzuMeNvjjo+v/AOok/wAeWPugSWiomugjfHJow/BjuEdcQAjF3A2kDvNoyiHeXtQZtHcX6E7b9KVAEu+6Zfy184Qe6Zfy184RU7mk+SvgIDKT5K+AgC2PumX8tfOEZo4OYII7M4qXzSfJHgIc2pGt03R03EoLSGPwsrj+mm4OPA7DuIAshBGqkqFmIkxeq6qy9zAEegxtgAggggDVUU6OMLorDgwBHgYRanU6hc3aVltwh2Ck9wPoGUL8EWjOUdmc50oT1kk+45JOjKdU5tZMsJl0Qi2yFhcWzyjmkavUaMXWQmI77X8Ach5IVI1TKmWrLLZ1DvfApYBmwi7YRtawzNtkFKS2ZLpwe6RsA3R7BBFS4QQQQAQQR4YAjPllny8MiViHOYy+HfhwMlzwF2HfnwMRN7sX/V+7hDo160LMp6973ZZxLyje56RuUHc7bODCOAaFqvmJnmmJQNOgKpBPluxsqzFuTuztfZszixOjyMAtwiuVfRzZeFHlsrObKCCL2IvbjmV8Ym7UDRryKVJbEk5k53zY3I7he3kiGCN+U4/hOZ2SZZ9LQ1J3VPcYdHKlOk++hl2PO80rXNrFfyQp2k5MSDwBG+G1MW4IiSDBtpjhomHOFb5+6JOW/OfLtlHabxlotJZrKYFQXaalss7KcRPo9PZAkshoz4sdwjrjnoRZBHREAIh/l4tzlJxwz/C8qJgiMeXWql+5qeTf4QzucAseost1c3tba6ZX39kAMCiqJPMypc2XNOC5GGWcP/GIxqxKPnMFmChrZHYDG5p9OpvKlzJdmVlZZLYsInzmZDnZgZRp1sciUN+JaeM8YMZ4mAHlKrqbGswyJi4ShVVln4O1ROmlFuLYcLyxlhzUm52FA0+EabilIyqwFlZCpxflC/5ZJub/AKVrZQmYzxMb6mU0sqcYJ6wKm+Eg+g3F/CALNatoy0lMrAqwkygQQQQRLUEEHMHshSiJtf6uaabRrl2u8ksxuRiYy5BxG205nxMImiFlzEUOJxbnDdkxHogICOAILpnxdbixvHCVbLLLY9eh8L4tBVnK1+Vr/Xr0J0giD5nuZLhlngYSLkOCsz4QZki2HqZWJuDssb8GlZ1PhTmHmYhcNixZjExUg32gFQeNhkM4jj9PEvH4Pd2zP9v9k/wRW73RMHSDsCMwQxBBGwg3yiw0urVZAnTWCqJYd2YgAALiZidgG0xenVz8jLjsA8Ll7V735W2MNN6Wk0sh6me2GWguTvO4Ko3sTYAbyYrjrHrHVVU46RZmlsrqZAU/EorHCFO9s7sd5vusAoa862PpWoAW4pJRvKU5Y22c844kEgA7AeJMJdVJBllLZWtHdI81snHk510TSEiz2SplWE6WNh4TU/Qb0G44Eu+Kl6H0rUUzy6ynbDOlHCb9VgMmRxvU/wCYsQDFltS9apGkadaiUbHqzJZPSlvbNTxHA7x5QIaJQvQQQRBIQQQQAg6w6ryKuZJmzL4pLFlsbDMqbMN4uqnyQqSqJQLWjOtrZUlDMmzEloNrOwVR5TDZqOUnRCHCatb9iOfThtAHZp/VKnqnlTHBxSmLLY22lSQ3EXVfDvhcp5OEWhrf0laJtf3QfJKmn1IY4ZnK1osLiUz2OdlEllJzIFjMwrnbjvgBW1n1Ioq11mzpQMxBZXDMrAAkgYlIJFyTY8TCX/RnR8G/aP8A4oRKrlfYn4KisOM2aA3lRFYfvRrlcr00dekltwwzWX1y2gBe/oxouDftH/xR0aI5OaGROFQsu8wZBmZnIyt0cROHInZxMNt+WB91Ev8A7hv/AKRD6odaaZ5UqYzBWmIjYbE2LIGwg2ztn4QAtothaMo56OsSaCyG4BtsIztff3x0QARDfL2fhqT6E77UqJkiGOX8/DUf0J/2pUAMKnAwjKSchtazbN+Wd9+22ezaNyIpUj4AEg532XC55jvt3DjdkqXXWFublnZmUzy4nf5Y2JpQgWEuX4EbbXyBtuHgIAwqJOEKcStcX6JvbsPbHTpiYSVzBFiRZlYZ7eqoschtudmccFVVFzcgDsFwPIL5eSO3TbG0q9783le18N+jcDYb4oAlXXCnDUejLk5SBs7ZciE7RtBUc2BKfIs62wqW6SqJhvgJCdQnPaAd0K+tP9T0Z9QP4cmEeS8vmHBchr3C4iBusQoyJ27vC2ccOL1saYYutGGRS0+h7pCnrHWYrsStyX+LHUa53AgYlxW7zvMctJqm8yWs0OoVr2xNY5Ej5P6J2RrNVMtbG9je4xG2eZuL74UNCVhl3IlTJp2dFiAl+FgcznnB0ofQtHHYiKtGVvwI+kNB83YFwcS4hhO7ZmGUEeEOLljWsalpJSG1IwHPW2lwFMtXPyNptxXPdHNXNNnMxMib1MMtbO2A4gRbstiFrb7xK0zRyTaf3POUMrIEZfINh3EHMHcRBQjHZHKtiKtZLPK9it0lVQACNuMNlHZrfq1PoZ5ktd0a5lTLddeB3BxvHl2GEunOUdLozZXa9ji0JoqfOqzSyZZdpmdhsFrBmc7FUZZ/fYRYXUHUmRo2WwU450yxmzONr2VBuUXPfcnsEb8ksphpTGqMQZMxWI2JcowLngSlrcSOETlFWWQQQQRBIRjMcKCx2AE+GcZQQBXHWDWg1s5ZtS4wYgQhFxIR1vZZWWN7YQWvdiWsLLhGdXL0IExGqU9nudyfDDl5YlPT/JlRVDFxeWSSSAqstzmbBh0c88iITqLkfo0NzMP6qKPtAxIIWrZshiRT0pdflNKWXftW+K/ojsqqhJUyZiRgcbgzBKuG6R6WIDZ4xPcjk90cosZbN9J2I80ZeiBeTvRgXCsgr2q7A557b3gCBpcwMMQYEHeMxGhpLk9YWvwOy/ftia6vkqpCSZc2ZLPkYnvcjF6Y4pfJImLOrfD2Alv32Zf3YXBEK08wG5IPYFtuMSfoWa3uaQFF+ggJ7AgGzvGzvh8aN1F0dJXDzCzDtLTfhGJ/WyA7BlDhkylRQiKFUCwVQAAOAA2CFwImp8txKbGpW73Fxa4wrmPTC9BBEAIhT/8AoQ/DUX0J/wBqTE1xyV+jKeeAJ0mXNC3K84iva+22IG0AVGxRhz4/1b2xbOVq3QKbrR06niJMsepY2HQVH+ayP2SeyAKkicDGTzMrXyF9+zeYtmdAUX5rI/Yp7I1DVnR/5lTfsJf+GAOCk0DJqaKkWaDdJMqxU2IvKQEcNw8I0jUCj4zfPH+GHUBuj2AEGbqjRGUJPN2Azxi3OHve1ze8Kei9GyqeWJUpbKM+JJ3sx3mOuCACCCCAErWXQUqskGTMuD1kcdaW46rqfWN4JG+Ih0dqBWTqp5TJzSI1pswjoE2B+B+XcEEbLYrHZnOcEQ4q6ZeNSUYuK2YnaC0LIpJQkyUwjaTtZjvZm3n1bBlCjBBElAggggAggggAggggAggggAggggAggggAggggAggggAggggAggggAggggAggggAggggAggggAggggAggggD//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIHBhITBxIWDxUQFhYVFRUVFx8QFRYhFhcYFxkVHxYZHSggGxolGxoXITIhJSsrLzAuFyI2ODMxNygtLjcBCgoKDg0OGBAQGzAfHR0tKzcrLS03LTE3Ny0tKzcrLy8xLzMrLS81Ny0tLS03Ky0rLS0tLi0xKysrOC0rKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABQYDBAECBwj/xAA/EAACAQICBgcGAgcJAAAAAAAAAQIDEQQhBQYSMUFxEyI1UXKRoTIzYbHB0VKBFBUjNHOSsgdCQ1ODosLS4f/EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAHREBAQACAgMBAAAAAAAAAAAAAAECEQMxEiFBcf/aAAwDAQACEQMRAD8A9xAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADFiJWVlxA7zqKHttIxvFQXH0f2PHNOayV62OrS6edKnGbhFQyyTsvztn+ZWdL6UxGFnKdLEYhVaCdRKc7xexZyi4p9zV0+8tldbxyT3X0K8fBSSbd38G/RHaGOpzr7EZra/DuffuKrofEpyqzk72slfuttfVeRpqbc9q+d7343ve/mRjxX4EToHSEsZGSxDTcbNO1rp3+3qSwZAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA0dKVehgm+JvGvjsKsZhnCbtfc1vT7wR4bpbRtSGMrU6lKq10jnCUISndN5NWT4WIrHaJxGkajjSoV06q6OVSrB0oQjNrbneduHBd2SPYcRqxXlHqVYStuveF+drmKlqviP8AElSXKUpf8EN11yymSIpV+gxMlH2aiuuaya8mjag7xOdKaFno9x6VxntXaccrW35PmaDk45Rvm0u5Z8b/AGIiyas3/WT2fwO/mi1ELqtglh8Ft8aj9FkvuTRWKAAIAAAAAAAAAAAAAAAAAAAAAAAAAAAAABrVsZGle93buNiUlFXk7L45EDiq21RahFvy+4WRH6fx8cVWVk7RVksuO/jy8iHpUumxKUE73yTy35IyYulONS8oO3NG3oavCppikp5Z8bJXUXbj32I31F0oUlRoRjHdFJeSMgBXMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB5BrrrviJ6UnDRs+ip0pOCaSlKTi7N9ZOyve1ig6V100gppQxdSPJRXyiWieEpYvSGJ/Tarprpqi6qu31+XdfyNWeq2i8ViEnisRtSvsrqRWTtn+zbV7O3IlulVbCa8aQwuJU54idZJ506j2oTXGLVsuazR65RnHFYeM6fs1IqSv3SV16Hl2mNH6Oo4Ct+q1XqzjF2c5dWLWW31Y2cfI9L0LBfqnDviqNNecI/ZFMbtcdWNISqt0q72rK8W83lk1fjvRYSo6s9qLwy+hbgUAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeH4aptaZqwW1HaxNXpJRk4PZcnHZutybeb+KNvQuzX0jicLVputTjNuCkukTSUWs7Xco2twy7zHhIU4vFzl7xYmtGO61m9zTy2X1l+fwGhtNTqYt0qNo9aU5Ti7ycU21FvvsorvPNz71v49XFZ6n1A62QctXaf6JTl+xpzUnnFwhJxSvFpO2e7/0u+hexsP8AwaX9ESsaz6XWO0BiZzd3WpbKS4bO3b+q/mWTRHZGG/gwf+yJvhytx9/Dnw8c/wBiy6tdqLwy+hbio6s9qLwy+hbjs817AAEAAAAAAAAAAAAAAAAAAAAAAAAAAAOs57EG5cDsYcY7YWXIDy3S2o2Hq4mpPFVqkOknKXVqRj7Um+NF95pU/wCyrBSV3OtO/fVj9KKJPWrGS62wnNNWSSvfK1iT1cquloqCxUutbMjp4xWp/wBmWjqcJOSqPZWa6R39Eico0IU6EY0U1GCUYq+aSVkr8ckjYxVV1cROT6sY03BK93NuSd7LclbLmzFRalTTjmDWkvq12ovDL6FuKlq12ovDL6FtKxewABAAAAAAAAAAAAAAAAAAAAAAAAAAAAABRsboijiMU5VqcJOV/wC7eTs9+7duNSOgKEXJ1KVPZ4dW1lbO/wAb3JbF0pVKdRUpum5KynFKUo2k3kmms+XA4UXJNtb5JpfBW+xG40I6Dw/+TFflb0MbgqcmoKyTskSk251o2Tsm23u4NW+O/wBCOre9lzYVJatdqLwy+hbSpatdqLwy+hbSsXsAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAVh73zfzZwzl73zfzZwyNupFVvey5slSClNvSlROSaSi1Hirud3u42X8rCprVrtReGX0LaVLVrtNeGX0LaVi9gACAAAAAAAAAAAAAAAAAAAAAAAAAAAAACsSg9p2fF8Pizq4P8XoZXvfOXzZi6W/sq/l9yNurhLhL0ImvSUcXNpK7ybtm0m7L1fmTN7rIisT+8S5sK39WstKLwyLcVLVvtReGRbSsZAACAAAAAAAAAAAAAAAAAAAAAAAAAAAAACtP2nzl82QcXNVaiVCSs3aTxEoqV89pQTsuROP2nzl82Y3USmk2rvNLiyOkdKF1Qjt79lX52zI7E/vEubJRkXiffy5sCQ1b7UXhkW0qWrfai8Mi2lYvYAAgAAAAAAAAAAAAAAAAAAAAAAAAAAAAArL9p85fNnBy/afOXzZq/p1PaaUtzaeTeadnw7yNs7IvE+/lzZKXusiLxPv5c2Fb+rfai8Mi3FR1b7UXhkW4rF7AAEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFbxFN0K8lPvbXxu7mnPB0pu8oRd83l38S118PDEL9tFP0a/NZo1Xoei9ykv9Sf/YNbQmUVl+RFYialVk1xbLZPQdOazc/5jtS0Hh6T92peJufo3Yh5InVWg54mVS3Vimk+9u3yXzLOcRioRtBWS3JZI5KloAAgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//Z</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRrYXAABXRUJQVlA4IKoXAAAQVACdASqrAKsAPl0mj0UjoiEVS2a0OAXEs4BotrcS7jow2pZylWvwn/T+D/k9+H+43Ic608yf5x+Pf5fra/s/AX5a6int7/SeKXuD7W+gj7hfY/9P+af+T+IT7X/peifiAfmJ67f8/whPw//E9gb+lf4j/n+qd/3f7f0AfUX/v/0vwFf0D+3f9H/D+25///cp+6n//92j9kf/+mxXkOOR8jSboDDpcAn0+PjnKNuMilpnXGtcsb658NCW1DgYcaKUYZpxfoiHOrVt4rC/i5mJqr7/aKDGX2M59jIcCvGRxDX7pdEoLo4kxqkGejLwShAAFdpzgpb8BBn9tfKS3m/CeeJPvWvi3ICX++l/cN7BN6RmwWcTP6xu5IBubSI44kt4U3MfdrKG+Om3gC1tNP2Hm3TJ01u59q34lQWDz3WRk/Ys1Af9a+7MMj/lWmpliZkQiNNYa6VbeySuMx/z3CnvgiXLBLH1hj/wvDBI/7RCWviD3123B1IkD8hf7ZjHCQaw5BA8Q6kFbb26wW5FIdOL/W47z6DE512NfJ+bzotpaXojTyfwLsvoIXrNpRB/IQX+Esug4vyjdMt7YT5qi9x4cxZGNX/ogeOtrPDLxdADZukqFk7IkMqpjnQv3SZnj/tI/BnGp+c/AlHo3EOVImPYsvBmDhowquxc1lc3V+PLBFzLvC9Uo5Va79ayhE9LbHAyzZNAEL/oKlEujsYqqBa13I9XOkc0OjTKnPCw5LhIZqzXEK0vgQ8fFjh1W8ojbydWmejuVwQ2tZXOVnKIumSqKVsH6UmcmE8QHf5oOSm2jywMjlbbGr0jjvKsNRym7+aIA0GHIHoySs3mkI5X0w4kcVZ4X8wBZ6QhcFuQt1YTP/9CI6baXOdMqrHizumPzA02J2eN19WXzAAA/v2A8AI0G+4+lg7DZEmKWnwFBkVhsTyT42/g37+K6g/CftktvTzI+etDUvEgebNLzkqi53Zh4HNIvbDx/fCD9yVa0ZABYn6n1ymJBEd6YtKQzaP8zhzPJeMRlaDgfgRHYtb9yccSwlTVmPkyuyfEcRAgW06LPsmT4AbO0uBA23r5tYsIHz0lZvJYW0sUMPeTLDMWHAq5/SOLTBoK9qr3bEVf4jV9tx4gsHW9SKP7DP4/GPBz5Y/PW27CrD0mp+f3+ef21sVXPhV8vDefNwFhuBV1eUqQ1+fYYMnPjTeDb2t6FtmOxLzQ2ukpf/mAcFkd3gskOOzMqiuwLL58+d4qLJNdps5Gs1Iqk7n19OMHgt+vX2iMq/kQEAEM27x4E0SBTzgeWauykdOZUY+9U5cxqBUqOZh/BmXte2uSsegOVOYAn2/Nlb9WKy6PQoJNYWg6R8Yof0xZky9H+iIFuac/cohiM2CZm6vUf29nHGSSBoHqQHQtczexYQx3kZSDa8DuMEAcEThpvIbZUGLSdUGT3W6/IvKxHYH061zyfcHXVyVBBVtmrsR3o5AgRSU2Bh93rg8YHnd7q3B7td/Ci87ZS6W7n452+bK5PSWdea+ZLeHv5PqT4TMhe3E2yzQJwHXx2n+o50Fo1W8R/ZpWH8GphCz2P8Jmng/ELBuYvfBx7/72S7Q5t8hPMYrr26Ybhm28+e6EY2nnzbu/2dWMEU8KfA5+vkQMICTwgpKQjYET5ySRPAQpvxh3UROLmui/L8AuUBlasU41rngFnXqi9/QGseNUcb78l9vITTH+THYsXESUlluxb2O9ahfPc8LmyYyJFoe+17VckwPNC1Z8sySQAA9wJIhPZ4QcFEtqna81k7+2+8Ft1t/IPsXprF9bESs2ieqXioLvBvKZHxxrWcYiFPaghZ0JZKpn+3bm0DBA2KWxNNyc8imEEqN+KfQn/ezS6omV+0zyWZm5RxgyK9Gu/xmKK3epP2A7NDdrWvcyfz6/vqpQSiXu34tR/0Z9TwJWUmdlMpb7Eeeqbhya/8N5SQ2tbiTJ7vfNf9ReN0vz6qlS5RdlM1+LjPkH3YBgaSbobrBMk+uOAwcBNSrSqhpJr8qrKN5SuBD/ntOmmSP2bKjBsi1K3PFJISU4lWhmowSUY9tPN+p7GwD+MHDAgXhex2eAFUXsClbPud4Th2Upws3JIzerWHKzKgV8BmRNARnTSy0BV740FZ4w4uhs6/trvDUj0bbKHkDiQ4FSm6PFS9rImTxQ5cY97wYbc1tP3/ZxCU2t62+l24Xp/wffqTZzyBxb2/wuRHCj5l1iikha5rjtYAYN1nHOKVZVZaHUZe0eic4SQ1O/zKKME+0eN5xkXZv43/l7HnRWbDblZ3N9TTdYJjvsp9CdN5vjdsjJEeRAOxH4aYc9m6xa2skIFnPWR/WRuNb1nFLxjEFQjY/NYAz2gyve01l4W2+JkicPVv332K2LDJQmPuW/NQk9+ji6HJB2JbQ98a1YaKDKke8/zkqPDdVF1TaA9hfPKMSuezl6bJUVnQIaoaVdnDxy0OFPAAugR55syUKQMVLpnRTy39Rry/Ie+QPUbjEhbYN9uoEVjjeK3eykLIkV3Q5yVpKUZt7gHbRbtb0RIfvD9gXtIErwMB2aaXVww9qPRJhtQ5K6mYyQKWfoBms6ctMC7sDEle2jedcmIzP8OLGpk+v+fNdhwNm+1cMqKngpHd89y3diZrI+LIdLK71BijcjwcaIlh1E7ThD6da2MG/afZt75/zj0spZBhdi2Rp3SxU6ldZt38hYwAxM7d7VTac9zGxfm5WutYLjS6L7bXaz29YzEwqAooM2dZMW6QEg+qB5LEDikB7jXA5bsv//OYRkryOrb/ZuXeVNiZfr8oElGArAaviSTu6TP0iercMpxftn3sIb0wcd2w1gCFaV3dieWrb0pOXooeZSmC/qSXICxLv8s8yMSemuaJIUFKdQIpN/VEglH6l19/HAcYhUnhi/ve0kkq0L9FUQM34oR7JOLRncTw8MohtL+3+WsWkdeOHeuFqw5m4tyq4zjq7idwsjHVeQliKXPpV3NOIL6zTyQMMvA2yX8JMzt3Woh26zz05JcBMKLPXKvXLgW3xIT7TZmqGvm4hBi1mBRKIbzWblNOMXSSjrDqlI7xsPKvxAAvfBaA9iqtd/UzLGVxF6NlKAn27Et8arngztG8m2573/ARspbGHF5hm3H29jRLf9h37ap07lPAQ7q2PsLmHoZqPKCbXrUm8+lMxLPnuHqyuZ+f2836HmEh9rTmtHAizlW4qhX8IC2hSq+9bpiMnDwMIP6fZddUnoSncQ4MQ+790AmKmHpKtSytzUjkasnlan7Bolhl3l7ib/WnD6JJHLWgC7c7EEM7ONUy2BQFqOBHGEsI3xhRfGeGPloj4dFANn7qUIj6dVHyiemzddnoVjUvAjU/yQ6eTNfNiX/YSgVPMuk/s+mUMzVZCR8WtY8jUApb8cQ6HAVyfmgMytA5wvjiWP9b6wxl66+o5EXOLr0ePlONqYBbuD6izLdcL0A1BavuocgrGQt1RKDg3IrmXdpoqbkOcleluQRATn5a2arLXvW4UKkplX6N3d6AgWskYVTxvx8gMMRF6+sSSQL51gPTWSYQ691H1tThea4diFIVMomX24SwoCyd4V/8y/eDHCSwULWeojUhL38fU/BIj/ruMuW6vSywQDTCnYDu4CEJjjj63la9KlNjJZ+UHv/M4liMfEFdb9QsG0sixNlaPR8eiIQOkK+9I/o9BmmBsaaP9GLejh2NB03Qz9S96RsQmljDApkrywkg9MIS3WNDk92wvjW3y4u8x1hDiBTyXY5E+TUAt5DSn4oYpy4RH1r0V6gRLLne/dDyuLKORiWrmrBysS8NsHo8xrcbGDlaB5nU2zKupDnADJQC9Y2G+PgiJ8kEVHx2yg7pqXKOwsw3Eo/AsRiKO/4JPwmznBzKRHKJrxrBERVv5ZeGNyN+EpBCGJSs2iBs/UTNAcWX4kJRUh5ghbzwiZEYrQ4MJjfndOcyWdL7wZ2ovp9wEaQPO0uPpPYLjs5/Dbj+N1BJ9YePhHaDz5OxqezNzss8YGpQDkjc+Y2w3CQdKEdkbAf8oy0delGqPXFpW+iXP5Q+SlU6K0RZQzYB8OBirTqQUBdRbUuKcZ9h2MvyKOuh3uM77b9+eQmI9LzGc5n5hYHbjixv+3CR+DiTQ2zDkR0w1KHCkg1RR4x9iHQu5NJSq4TWMre+zmfYm9hhk5MTmx9vbqHI//GR468QduKs6AyjN8TpA5fcIQKXzB7fPfPLKdtEB+4mZnLFVtoxmPE2TtFgTtFEft7jWH/76RKt012oCng1vpg0NWzJvRq0l4PLmOOltqK99z5iifGAAu5dyVm42XJSX8jbK97XpGdJAf8LPVfEqCol7Qr6yGXDFmBMiryhewxGywP8sCAQT3LIeOKwdYVJIHgKEr+XJAtXNF78bkO1zl2PQXjvEsaYBckO/LuVcQFEkFcbw2aWvqffUfiTFFajzGpYYKWWN0+4MLmFV4WNev70dN427CvP4QkgY1vakl9Ju/OXG+feqFSsR2A5N1AerKRwiJhx36pBFWj06fOW/uCZL26E8X9qnQ6OYKylY09cM7OVNFDqrCRbDafRLjn4D5msQ0ePjBT2W4xdRgnnFTvSQEoLcJDVF3ADrrVgulgOzCxeQF8Ulyj/jDNoOnhcSY5fZUEffbt6lxJ286oHTeeCTs1VMP9UXB4CSIrzJ2hqDqG/ev4hXnChX1gNpQss1Qs6XRtFTWR1XO4JCtvfTIveBQGnnD2vpEaW0pw4+aLJ3vK5vot2AngD8XJj9r3fRE87tQ9SYnJlT3FDDWRolQtccTf4oISSTjzG9cK6BewXRU8k6mst4ksPPl1IfAJiyUHGCvKZ71ef1oWyGSiaZyvwKRpyeT44OalHS5MiN4EuhCYNoGPc1pHTcJP2LxzTY1a285HpCS17t77FtxaImC5iAY3IbcYIIoEFHn4ylHT4woj4mbzFMQAg9FL22yo7lFWC9dhqI8Nyz8AO8l+vmfTfKR4RA2SmIPZ3eNoFe7tlel2U7LJR+WRpPesVssr/3fZnhiA/83q6wHWQWfjIcSl7Eggc9IT4VFfIEUuLGwuvl2zpSOwcyDdkgdC0o6t9pNjmf8cOMdVrnG+SRW0AZG5vruN8dVSz7NMg0xMr+pYHmqBUpuJ1LQ1fsSnN9G3E9LrussWANUpz3S1YAScStJbuIez6fpEdsp0167Pi24udE7+XkDgO1FfXN6kgqF/Tfez/oBovqsV4uEJNfHkx3Ga/51aBX5NJCXNNDSALGsJ9v1AKvcwjlfj7jQp205orN+uwwXBUNqYKq0x6hQjmURF05n9WLuke7m9w7p9YyNO0h8xPrDEbT/GiJXKbnxdItSGXEko4jhQgIvOHpUFGFRBen7c/mMm0jogTCbQpq/ZG6NqVkHf0OxI+R1x1500y22wI/pSMEF3FL+6o1OsD+v+YvAf62wpzg/9o9Qv8nucAcYMFhU4C3BYn2ay2/d2EaYucN23VUIDtG9nAgL4XwdHCXsxOnkwlSza41DbHV780Itt1aHJ6gqX3cULfe+Ehs/krFcjBI26NetzEQ3pPc4Sax2sdG7Ri/E3G35VTSILfbF/TLVzmaxcUFjPCd3z8xTeaGBxis8266Ddsk0u+PozSIkBLF+NHqRZ3CXQFvYG7Wh7DmsTXN4fvs8+UQkwSOXu+X1S3kF4MUUqhd0UKDluEJ8LuVONEtrqguLtHrc9a3nJwdvCNrKbBDoC8DH8fVCCJd19GIWP4UczdrcB9ATW2Sq0J+YzPbYLnN+cqvnrCt/nz+AgVy9U5Ywl0e0wob4dQSCnWw3u0NKQITzyNJ3S0HBQjVLhBQ+eLjUg8tnfpIDfmxCzaLmFCdVA18SKEFSLFT+RapAAPi2sFJhUzcpkkDQTl8ftcnYoj3SMZtzqHTRvmtW0vO8sgKmoLWdWgudmufXNUB6Ys3g5abnfKlEyhVl1Pu3sFC5dmIuga08JBS5y7VPf7EtmyQBgPGKgMZhjwpkfhjDZq4QX7LEANCvzXUCEoVMK0fAaR5/wdXL6POWZvo6l94a0/gbAfylpq4Pe7HHC6ahkqBg1CFHmlAKxHpghwlkxnkiraKsVCSYiORBC3wFlXeUmIikvZHIgI5PAgxIvEY3Ys0j6cS0qzwRDJpXbAvmKlxyfAscZXAavTVDpGbgKLIMR+uCj18f+TLK0eLSr0b/kg651PEni9cWSF93u0H2DORG9kqTTLBUoWdkS/pLA1dhCu3UWPTF+UKqeLMbrYiT3FaIA5cZuEOsDLiDSnUvUTJGONjN8ZtoQ4G9pCPCXATRRYaove9widN0KfBnF5MCuLbC8A3T5Ngrj2ODv2fBL4rZfEWuiYyQwaRNmd9jYPqJ4IjRZbMCgN0HknbPKSUzFUf3DOhdAs3tmMndQQth+unf3TOkxeSt1UfR1FuP59JJCWb9eKVeeHOVCFNOH5G4ximP67omC774+koFtY9Fty7znOACmEiGlhfC+Oyk+eDLGzz7SviX6CrOHM8o2hB2NGpzE/xqOz8NSs9PwCScwunGOyEbREbC6HcLISbOuFmTLKLb8yF2ZVMhaG7h5tDkRX+ldZEIl+38/xQstjrmGc4Gc6zdmKBVZOPQC1a1Dnr/J4ozFbM6oqGmJDzqTdSxC+kttcf9pqvA5GX5ivvZUWGd2Cm9da6IrOYXxZBn8s17PQgfqWScNPStji4XuagiWZYghjbvDVVNP+GHO74URteIX/J28sge2qWcsbCDdzlX2qF8H12Oip4mknK/D3q0OZorqNORhSvHA6dUuFiAitrgUsqUu5DaKpnnjmxWDaK4vCz2rHkVOgOeYtygGWdgNUZMzcvBwMzx/IvUI415YdhKY9WEeKX+0Oy86w9k6RV+fTbfaDlE7SzHsK1eMgZ/t0ayAxSGPV4dSCs2okgwk0WiGt2gs/6iNAzdouRV4G3JOqjXJsuSW/+7msetX7YCmjQt5b+fBTBg+kCzGyVkrmFrcAUWCyAF4Qz7BKrqHklYjfXtDkSeEwiTCvUR7Wcq/MRNxuMRUsR4W51XoRw1rlN6FGi58xwTOmiG+AGJs33d1EWRXJH+svhxZWClpH8fIaF/diwDlx2LZ9tWu85OqNVao8j/+KHbPMonRba8uYX76KRejahubkdyIV/X2DTvNZ2oM77BQ3fcroddftpF6vr6t/UmJtiChERa9d+o27itiDR60YBK9bFPkIvXXvGB4o5y6aRBcOyMyE/QN7Dfb8Tizt0UQ3q5F9PZ1aLhCoGnD7I+uXL+tIc1gTg5Sn20gSR0nD07et0fkt9t8ihEAMFklEPj6qgGSvfMfH0FVINAIZRwu7XvwzRKbrf0v+s45aamk4H7WAp8k5BqhA0J2wZXR/Pp7oMym3rqLr5l4HzkCOot0m2K7RvhRJfYhsaADZVlVxdtPkzSvveyDuVaXnY4K10Ev1wKzv4JphPeY4IXgU0nkzDiDGOvdg4w2OHckFyV323Oj6PvSpBHzf25zoIXdnokTICX8qbQBDgUjkM8lRBTTqHL+qoL1BDByPFp0d3olF8PpkJAESm5h3Hu8DzcyEaXYWvIuUTSudfKUIFOYJFtbjLhTiCLPXEbicROpVu91yCMGFJCH/MGJGohJ/OvSTps//AtMx6XFznHgtGy0+/WUU7IwA9riFD6/INe6Y5O8TL55pNvow8FuoOR/HOjtKBsmfVi/HpGcSm+CVqejjM+f+Yn5oo3xCJyRh8RSxokQw+f+8e+2LeYsYsCpCVVgnRf54ZU0csxhCgquBYngn/lwQqKujTG8RsQwhom8yyZDcyWqaKfoUiI8+kwXX0Qcqz1w+PfmOYo8ru0b49DWP+4mjETQkFpmOAVZZK8iaO41jNjQ/U4LUbhoTnUzcVJ5ztSLhPTtyZDoegjqzwDbcqLV2M3axcheDl7O+bBEdNJqVhD5/+gX0UF5Baj3042pDXZYSJsMpBrFgKybpwWlb42HKdL1xd+E2uVzowgYrX5hivJafATRVLnVL4XnEAjIYqE6gIr7BIecDKnZPk7gP7BqYrVBGcYjKzj5QMACiugePUAGTGQkAgndUL5XJ+kdV58hdn31ABAgAAAAAAA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhITExMVFhUXGBUWGRUWFhYYFxgYGBcXFxYYGBYYHyggGBolGxYXIjEhJSktLi4uFx8zODMtNygtLi0BCgoKDg0NFRAQFy0iHR4tKysvListMy8rKy0uLS0tKy0tLS4tKy0rLS0rLSsrLTYtKy0tKy0rKy0tLS0uNy03K//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgMEBQcIAgH/xABQEAABAwEFAwcFCwcKBwEAAAABAAIDEQQFEiExQVFhBgcTInGBkTKhscHwFDRCUnJzgpOy0dIVFiNTVJLhJCU1YpSio7PC8QhDRHSDhMMz/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAiEQEAAgICAQQDAAAAAAAAAAAAAQIRMQMSIQRBUYETIjL/2gAMAwEAAhEDEQA/AN4oiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIi8yPDQSTQAEknYBqUFhe1+WezU6aVrCcw01LiN4aKkjuUen5yrE3TpX/JZT7ZC0vfd+vtdufIa4HSAkVp1MQDWZZigLW5cStn3byZhcxjhHE0loJ6hdmQD8JyzNsDIHnSsv6qfwj/GvTOdGybY5x9GP1PXkck2nR0Y4CCL716PJSPb0Z7YIlO5hkLHzgWB5AMpYT+sY5o73UwjvKk8bw4AggggEEGoIOhB2haK50LqZZ2RdExjXE1xMaGHIPLgaGhyb4qU8xd+GWzS2Z5NYXBzQdjH16o7HBx+mFqJyNnIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgKMc5V59Bd1odWhe3ohnQ9fJ1OIbiPcpOtRc/t6UbZbMDqXSuG6nUYad70Gp7DKA+riBUt4Z9Iwn1rd9lvxkTWMIdXC3Rrd2evFaFlsw3mtK0qtxc2HN62Wzx2q2Okf0oxRxY3NaIz5LnEGri4ZgVAoRqsXrM6kSdvKiIfAkPYyP714k5VRD4Ev7jPUVmPzHsH7OPrJfxK0vDm5sEjC0RvjJ0fHLJiHEBxLT3grPS3yNb86N6Mmihc0ObRxb1gBU9FNp4hYrmdvPobyjaT1ZmuiPaaFv95rB3rDcrOTMljtMkEry7D1mv0xMd5LsyaaEHi0rG2Ob3PLDKw5sc14J3tcCO5dKxiB1qipWWcSMY9ubXta4djhUeYqqqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAubud28hNec/WGGINhb9AVeP33OXRdttLYo5JHeSxrnnsaCT5guMr1trppXyu8qRxe7tc7EfOSgknJ24TaLVDDixGZ7WVGVGHN5HYwE/RXVkMQa1rWijWgAAaAAUAWieYOyCW1SSke94qdjpDhaf3GvHet8oCIiDWHPncwfBFaQM2ExP+RJ5JPY8AD5wrRbo8ADS6ozpXWi6u5VXZ7psdpg2vjcG8HgVYe5wae5ck2m01dUAaUz9uKDp7mqvLp7ss5Jq6MGI/QNG/3cKlq0z/w9XziFqspyIwzNHA9R/nweK3MgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIIzzl2no7qt7q0/QSN/fGD/UuU2vpsB7Qul+e2Qi57TTa6AHs6eM+rzrmQlBs7mw5fWW7LNKJIpJJppXOPRhlGsa1rWBxc4bcZAptV+Od+3msjY4MBLgGvDye/CRWlRmKdigl08nw5jHy4mh1cmUL3VPVIrkPWpvauQ/udkgkY5zYWskOKVoDhK7A0DDH1jibSlQgN53LyOf8mHARP8AXIvY54reBR0dmPEMkaftkL7aOTz4+nDbOx3QmJrgySV7i6QAtaxoFXEAio2LEWqIPjcX2OQMaSDIOkAY4GhBe4FoNcqHbsREwurnhMQd7sgc7ySDZyDlmTVshB+LtO3RaXv2RjrVaXRf/m6aVzNPIc9xZpwIUpvO7wWFzorTGMgHubVmY6urWg1A3qG2+z4HkAUac29n+9UVPuYi1YL1Y39ZDMzwwyf/ADXSa5V5pZsN72E/13t/eikb611UgIiICIiAiIgIiICIiAiIgIiICIsbft+Q2RjXzEgOdgaGtLiTQuNANzWuPd2IMkihtq5xLJhOFzg7qgF0ZoMRAq7PTOuuxQe+Oc63wyyMHQkNLhnGdhI2O4IN1ItDWfnet5cQWwa0yY7dX4y98pede8IZDHGITTDmYydRU6FBOeey9/c91ytpUzubANwxAvcT9BjqcSFzcyADrcMqqY8qucC0XjZ4obQ2MGOR7yWNoHdVojOZJBFZQdhxN3KGWou02IJnZ+Utljkg8p0cRjqGgAuaymQqdtNqkl5860M7GMfG+gtIldTDnAyRz44xn5Q6g3ZFahwHcvmA7kG4LFzqWdotFY5cU8s8hc3DiYHMwQ4DXymtpU+Ct385Vm9xCziOUPMHuZwq3og05SSN+EXkHbwz36mwncvmE7kG0OVPOJFaYJIWCRrXSxuAdSjIo4w0MAB1MgLj2qHTuZKwUNaVB3jaD4krA4SvcL3NNQgz3IguivOwf9zAK8HSNYfM4rrhcjWO0mKSGdoGKNzJWVFaOa4OHnHmXUvJy/YrZAyeFwIcBVtc2O+Exw2EH70GUREQEREBERAREQEREBEVpet4x2eGSeU4Y42l7jqaDYBtJ0A2khBSv2+oLJC6a0SCNg2nUnY1rRm5x3Baj5Yc6MspYyyOEcflPe0ky8GFw6reOAu2dbULX3LLlRNeFoMspIaCRHFXqxs3De40FXbTwAAoWaPIAIJJBy7tLHOdHLK3q9ZzpZJS7MVykJawUqeqActdizlleXAS2mZ7gQXY3yEtoGYySSaeSCe5Q6x3OwkmpFcthGfAghV4uT07hSS0HDXMAE1bxxGlaIiXN6B1nD5XuDbQ1jobGDieaVLSI/jmoJI6raCp1KiF2T2eV7opIg+SriZjI57SQMT8XSOIcK4sxrStM1k77ne2Iw2OARscML3sb1nAClHSHhlmVD7JZujDRIA04wTmCcFC0+Sd5CmY011nGceEyszLOM2CFprTJgaeAxYaV7TVRzlLbziLamvEn23K/ZdsznYQdRoK030pu4LE2q7ekJfjbhBLWitXENOtNmdfBSt+xauGOsFmxva3QHMnc0ZuPgCshNDiJdQCpyG4bB3ady92Gz4GudtecI+SM3eJoPolVrDE59cdWtAGZaRUmtAKjPT4IOzVaZWJs6qw3bI/yI3O7Gk+2qy3uuKPyW14mh9NWjZri7ArK08qNgNRpQAvFOx3UHcAqPn5An/VHvoD4FUpbmmbrE/tDSR4jJUPzifsaacGxj0Be4uUBBrSnHo2eloqO5QUOg4L77m4LKsvtsvlAO7avoOx5x7/AIfcvE8bSKs13E5bcgSBTdRwB7VRYSRnBT4voOvnz7yri471ns0gls8r435VLTk4bnNOTxwIK8RO3gjYQQQdxBqBxGipwso4goNzcmedtjqMtkeA/rYgS3tdH5Q+ji7Atk3fb4p2CSGRsjDo5hBHZloeC53dyRtIzwNpln0jKUNADWuQz8x3L7dVrtN22lsgq11GuczEC2RhJq12EkbHDPNpCiukEVGyWlskbJGGrXta9p3hwBHmKrICIiAiIgIiIC1Zz9XkRZ7PZWmnSvdI4b2xUoD9N7T9BbTWkefz33YfmpftsQa3sN2jEC91BX4OZ7aHXVSOKy2VgqZC/wCSGg/bd6Fi4W5BfHQE7zr592/NSYz7tVt19ollvyjZ20oyR1N5d58NF4m5WtYOpGxpG3CMXi41qsLLBlp2AZDwAz/isTa2Uquf4s7mXePVTGqVj6Xt68ppJK5+srAe6Hk4q5ry7Mqo1i3WkV058nNfk/qWR/OaYRmMOcGkUpidSm6gNKcFTu+1EkNGZJDR2nILFEZlSDkjYsUjpDk2Npzz8pwPoaHHtpwWnJnBE0Ucc2jqsHxqUz7Can6W2oBxV53nQ01dsaMgK79w85211Va+rcRpqcmt3eHafEnblYWGxfCdmTtRHmzXbNORUE68GigqczkMt6zVluSCNxE7hlh8mpGvWB0IyB8RsXu2XvJ0YZGAxopUtqKkbu+vZpnRRS1uJPWJPb92xXDE3jOElhtNjAaHYa46udjB6uHJoAI+FU61y1Vw2OxyloY7COsCa1oSepkCaNFc9tGngoOSvgKNpleHJjIOjIeNhbrXrZD43kk9Uk01AWI6R8Zo+pGldo4EKhd99SR5E4m6EHPIim3XI7fMs9bba20UeGtAIA6opU/CJ4kk+btQWbZwaA6bHerszVdpA1GYyPq83oWMMeA0+CdOB3diyFiBf1KVdSg3naPPTuKCTN5TWhsLSwtOHC2vRxktDWFrTUjdUfSO9Y+e8pLS4GQgkA6Na2g1zw7tO4Khc8tcUZ0cKd+zzrzdgpI8HY13pCg3xzWWoyXZZidW9JH3RyPY3+6ApYoVzP8A9GR/OT/5r1NUUREQEREBERAWkefv33YvmpPttW7lpDn79+WP5l/2wghtkboq72A+f0fxVOxtyVxTbx1qTVEWVobl9/tltyUZvKVSe3aKKXoMwgtmBVaZe3tsXmNuQVR4yPYUVZNU4uqHorJGNsv6R3Zq3zYSOMZUIiZWgGpNB2k0U95RPwBwAoGMaABuw4xXsJcEEdZ+klc46DIdyzNhs2N2HYM3HhsHafUVjbuio0dizFgtQYxx2knzZD0V71qseXDnvNaeNvN7tDWqKWhm07dBtPHgFmLdbQ9xrmBmRv3DvJAWQum4+mzOZOuyp3cAPMFz5eWKs+m4ZmENMZOgXhzSNRRSW+3iI4WjLfhoD2VzI45LEulDsiBnpxWqzmHpxhjwVe3da8Ds/JOvqcrSRlDRGqok1pjxAhULNMWlj9oOfaNfH/UFe3JZjNCXVzY3+rnTEMyXCnk8dVZOblJwwu8aj0taoMxeGESNkjAa00BABADmtaTSpORqDXeSq7gOmLho+Mu9FVjrNRzmNycSzRxc1g6Mubiqw1rplnrnwuRPR+EjINIGdaA6kGgJHbmEG7uZ4/zZH85P/muPrU2UD5lz/N54Ty/6T61PEUREQEREBERAWkefn35Y/mZPthbuWkefv33Y9/RSfbbT1+CCJWF2QpVVpPb29tqtbJoPb/ZXTx7cNiIx9s09vb/dRm9RmFJ7YdfbLZ7cFGb1170FKEZBe5hk7s9a+QjIKpIMj2H1fcirK7z+kj+Wz7QUr5QOqJN2FvhRyhzDTTUKXW5/SVNah7BT92g9aC6uicNimFWglu11CagjqimZz3j1iOTWsguG4kecqQ8meucFPKbTIVdkRiA6wpli1Ozbooxe8JZK9pyzr9/nBWolzvXspCbXu9Kkt13uWQOpqQ4eOXoJHeojVXdgtWGrToVi1Ittuv66Za87891GNj2hoBAxgdYClKU04rxe92MiLAx+ME1B4ZeuvnVg+IVqKd4XoS7zUqRWKR401la2hmfivDGq4mdXvyHZtKrWezrVcy48l+rN8mLMxzHB5oAHHIsG7a4EDt7N6oNbUSndG0/4sY9ZWRu9ojs8prmQGAVGeI9ao4Bxpn8FY95pBO74z44x9EOe/wAC6LxCst11C3bJT3PT4sv2hXzq4baaOZXfXu2+bLvVnbWdWOg6wBNa0piNVc3RYTiDnkaEgCpzGhJKit88yv8AR7vn5fQxT5QDmT94P/7iX7LFP0UREQEREBERAWjufr37ZPmXf5hW8VpHn6H8ssZ3wv8AM8V9I8UEMsJy+/JXDnD1Kysp2j29vvVw5+Xt7b/uRFK2H2NfWoveakVoOXt7bPQo5ePrRX2HQKoT6fNofWqcIyH8FVCDFytwuIWau60YowNrMvonT7ljrbFtGzX1KnYrRgdXZoexBnIHBj6EAgnGAdCK9Zvj6VdcorF0zBMwbSAMIbkABSgJFTThnsAIVmW4gBXPymO9Xer+5bywlzXg0OTm604gHInZUg5d4NREKL4pTfVytdSSPqlwxYcyADm0OdTtz/qnco7PZ3M8ppHHZ46IKIcd69NK+UC9RtqaAVO4ZnwRJXEAqVm7DBi00GppUADUngNSre6rnkecxQCleAO1x+CNfA5LNTFsFOjeRI0kO3ChqHMOhB413q5w5Rx5tmVteRazIUJHwmuxYt2hIxHgdtKZVNrb25xQV8irpNPLcavz4Uaz/wAYQS4f0ztmcY2ud+spuB03nPYVYSSYQa+W/XgNyy7KkkuJ5p2Ds2LLWA9Yjcw+pYWxCpqsxd3lO+SfUqN4cyzf5uJ3zyn7I9SnqgnMv/Ro+em+0FO1FEREBERAREQFpXn+982H5uf7US3UtK/8QA/lFg+bn+1EggNm9PBVydfur7edWlmOVOG8eg+2arE9/oRFC0HtWBvELOTjI5d/sFiLe3JBTiOSqtVvCclcNRXyQZelY2aLCeB0WVKoTRVqO/sQUrHaqdV2mzgsqWB9Dio8Dyt/3hR8gg0KuLPaC3s3IM7Zrc+FwceqR8MAFh8dOwq4ktIeS6jRWmTRRulMh3LF2e8NzqduXn29iuWPjOZjHawuYf7nV8yqKroWHMtae0BV7JK1jmktBaDm2mR7lbh0G+X66P1xr6HwZ0je/wCXK5w8I2sPnQXU15EuwxNpiAYGMGJzgBQVAGbtcwAczmqD7OGZykEj/lA1A+dcMvoNNd5GhpS3qWtLW4Y2nVrAGgjc6nWf9MlYme3/ABc+J9QUF1b7V1sTsz8EeumwbABpRY8EvdnmSqTWlxWSssQairiCOgV9d+rvkn0hWYcqkc+Cp3iiqN+8zLf5sYd8s5/xCPUpyoXzOspdVnO907vGaSimiiiIiAiIgIiIC1Xz5cn7RO2yzwROlEIma9rAXOAf0ZDsIzI/RmtN4W1EQchi8HRkh8T2kZULXCncRkvLr8Ydnn/guvl8LRuQcgOvZh2ge3YkNjmtIIs8Mk2HXoo5H03eS0rr0wt+KPAL0Ag5Gi5M2+mdhtndZpvwqqOTluH/AENt/s034V1qiDkr8gW39htn9ml/Cn5Dtg/6K1/2eX8K61RByJPcFpdrY7UP/Xl/CrT83bWD70tNPmJfwrsZEHHJ5PWv9ltP1Ev4V8ZcNtB962r6mX7l2OiDjz8k2/8AZ7V9TL+FfHXLbjrZrV9RL+FdiIg43/N617bJavqJfuVaO4bSNbHa/qJPuXYSIORBdNqGlitX1En4V9F2Wv8AY7T9TL+FddIg5IZdlsOQsVqJ3dBL+FZ64ubS87U8F8BgZlV01GUHyK4z4eC6ZRBY3HdjbNZ4bOzNsbA0E6mmrjxJqe9XyIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiD//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTEhIWFhIXFRcWFxcVFRUVFRYXGBYWGBYXFRgZHSggGBolGxcWITEhJikrLi4uGCAzODMsNygtLisBCgoKDg0NFQ8PFS0dFR0vLSstKysrKy0rKystNy0rKy0rKysuLS0tLS0tKy0rKy0tLSsrLS0tNy0tLTctKystLf/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgMEBQcIAgH/xABNEAABAwICAwkKCQoGAwAAAAABAAIDBBESIQUxQQYHEyIyUWFxgRdUkZOhs8HS0/AUNUJidIKSsdEjJDNSU3KjsuHxQ0Rjc4OiNISk/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAECBAMF/8QAHxEBAAMAAgIDAQAAAAAAAAAAAAECEQNRQZEEEjEy/9oADAMBAAIRAxEAPwDeKIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICK10ppGGnidNPI2OJtsT3GwFyAPCSB2rAu3fUHBGYSPdCNcjYZiwfWw2QShFD5N8vRrSQZiCDYjg35Edi+DfO0Z+3I643/ggmKKLP3w9GCMyfCRhA2RynbawAbmbm1udUod8OjfG6VrKgsYQD+by3zvnYjVkglyKHxb5mjXAnhXi3KDoZQW2F8xh5iD1L4N8/RffP8OT1UwTFFE+6Vonvxn2ZPVXw75eie/WfZk9VBLUUR7pmie/WfZk9VfO6dojv1n2ZPVQS9FEBvn6I79Z9mT1U7p2iO/WfZk9VBL0UQO+fojv1n2JPVXnuo6H79Z9mT1UExRQ7uo6H79Z9mT1U7qOh+/WfZk9VBMUUNO+nofv1n2JPVXzuqaH79b9iX1UEzRQzuqaH79b9iX1U7qeh+/WfYl9VBM0UKfvr6GGutb2RzH7mK/od3+jZg0x1QIe9rG3ZK273GzW8Zo1lBJkREBERAREQEREBEVKoeQMtepBDd+j4mqv+Lz0a0hovdRIaR1IBEWuIIa67JDn8l+LCeq11ujfpLhoaqub5w+WeNc9UtGx+Ry6irCSlMWjpJ3uPA4XE4i187GWudgc29lSl0a8OwiB8lrXMUjZGC+zG1lrq80TpuKmpXQYW4jm2QOwyM2ZED0hfKrdi4xQsZUyRuiZhe8Skmd367geSdmsq6MVTzxlrmSMxNLrYHHkEOtm0jI31iwzuqdfHFiwvsZXOtjcHPYNjWuaeM52oXvbUvU2lWuuXShznG5cY2Ek85Nrk3vmVi61sLgLSkEbQCeq2eSaMi2UcC45XJIOQYXlrsNiBm4Zar9Ct5y2LAwh2N1snPYXAbS5oaC09Bt5FbaLqIoHcI08I8X5Tch261ZsLHSXaDdzibk2A2mw/FNGwdx/wIRS/ChDwhlbhMpp8YjDONgFQx0WEu1nivy12sqtTJQXlFG7R4k+FEl1ZFhhNNgaGinbIHANxYsWHjk5jIhRet0c5jWOcX2eL6xltAyJ1jPOysXQDp8KCeuqNBgPAbFwZrDwTgy88UWFlnPjc38tT8KJQWON+Dc22oWoaP0jo109aJYaIQMkMlG7A2LhcLjghcRG7FC4AXJAIvtvxYKYB0+FXOjdEPncWxjJoxPeScEbb2xOtznINGbjkEFrUzGRzn4WMc43wsYGRs6GsBs0LLbndzVTV5wwulbexkyhgHQZH3xHXcNuVszchvUxNAlrGlwyLIXZF3zqi3kiGQHKLibCd1LA1uxsbB0MYwDwBoUVrTRe9uW4TLPC136sFM2U3PNNU3PgaFIGbj2i96ivd/7QiA6hGxoVjpffI0dCcLZXTvGynbiF/wB8kNPYSo9U77ov+Tonm+107WHwNYVRKKvca1wI4ettbVJJDUt7WyxG/hUS0vvbvz4GSF5F+K5hpJNuQLC6Inra0dSr02+43/EpZm/uSsk8jg1Z7RG7KhqXYWThrz8iYcG4k81+KT1FEad0vomanfgmY+MnU17M3AWuY3g4JB0tKx66Vdo1lQ0wSRskjcLlkgu3rG0O5iM+lat3d72jqcGopcT6cHjtcbvhz1lw5cWzEc27cuMg107oW19DQ6PY6Jr3UJoHU8YHCmN09VVuwuxSWvJA1j+KcVmtFxYh2WrDCASCCCDYgk3B5iE4Ic33oPWmMfCP4RrGvxnEyIMEbDfksDDhDRsspbua5FL9OpvPMULnYA3Ic3OpLQTmKkbMCcUU8UgBuWXY8OGJu0XCDq1FgKDSNU0RGpYwcJYHBfiOdqBzPp61n1lRERAREQEREBeZGAixXpEGv9+enI0PU3kc4XhyIZb9PHzNC0doanvbqW+N+z4mqeuHz8a0joBnFPV7/grAsdKtztb8fCsQ6L3/AAUkqobqyfT9H4qowc8TrDCOvnVHgZOZ3hCzxpx/ZU3whQYuJvKXui/SM6z9xX0i2JeaD9Izr9BRUjfWvMTYb/k2XtrxHrJOdtQ6Mlaleiqbito9QU7pHtjjF3vcGtF7C55zsAFyTsAJW7tw25QNpccZFsJdTuOXDSlthWScwztE3PAzjZudlq/e70V8LrhEf0QYXTH/AEhbG365LI+exeuhq7ScVPC+aQ4YomFzrDU0DU0bTqAHUsSqO6S08NHwmWqFi4ERwhzS+RwN8jiIDWtydIbX1kA2C0Nuw3X1OkH3mkIgB4sTLtiB2EN1vPznZnZYZL5uz3TS1075JNpw4b3DGg3bC3ZZutx+U651ABR8Sjt99SqPbW8wAXrD0nyLyJx0r7w46UHwNPOvkjbjMduvyJw7elOHHSgmG4zd5PSOayS8sH6hdmBzwvPId8w8U6uLrW6dFymqHDQFr4HkYJL5saGsDo3sObHBwfiZYh2LMhcxlwOQ1c3pHSp3vX7sjRVGGV35vJYS55WyDJx85upx2tz+SEGc32NwzYfzinZZmxo6ASYiOgAlh5g5uxq1Y05LrPS1NHPE+GTkPFiRrB1te3pBsQecLlbTdA+nqZoJAA9kjmm2Qvzt+aQQ4dDgpAx9Tye0fepVoml4WmjivbhKmGO9r2xva29ttr6lFank9oUy3L8im+m03nmKjoPRmg3sETZpzKIgMPFw3I1F13Em2XgWcRFlRERAREQEREBERBBt+v4nqeuHz8a0nuf5B9+0Zrdm/X8TVPXD5+NaT3PuAYbqwK0gzKtXD3/t9yvXjM/0z8OxUiz36Pf32qos3M6Pfr9+1UpGWV85nUfLq9+nrVvOB0W5xf0oI+/U5eaIcdnX6Cvcnyl5ouWzr9BQZcrw521enFW1Y7iO/dP3KjaO8rTYKSWpPLnmsD/pxarfXe/7IX3fj0+5tPFTtP6R3CO6QwhsYP1yXf8AGFdbimiPR1K0fssXa9znn71Bt9GbFWMH6sbB5HO+96zAh4bYHoFvxUk3D7l4a1k7ppZI+CdE1vBtY6+MSE3xc2AeFR75PYpvvXvtDWf7tP8AyTr146/a8RIVO4SjbqqanxUXrLGTblaUf49R4qL11La6VYSoeu6fjceOe3JPiWCfufpx/jT+Kj9oqTtBwftpvFR+0WUkcrd5XLbhrvl5Ty27R7SNIIpcDXFwsxwJAB4wDrEAnnQHCbjZn2HIj7/Cq+nf04/24v5AqTxmO0eT+i5oddJ2sTLeu4HdBw9BFd2J0RMBN7khgBjJ6cBaOxQPfhoh8IiqRrljLH9L4bWJ6TG4D6iqb0dQR8KjvleJ/bxm+gLKb5sWKljP6tQ0dj4pGny28CrTUtTyfAppuX5FN9OpvPMUJkN2eBTXcvyKb6bTeeYg6fREWVEREBERAREQEREEG37Piap64fPxrR+gTl7+/Ot4b9fxNU9cPn41ovQh1e/QrAy1SLenVs1DJW73Ze4zOWvs5le1Wr39+k+9sZIe3y9p6FUHHt+48/Rb8FZ1En3X2H0aulVi/wDtkNm3m17FYVsmR8vMgxh1OKUfLZ1+gr6BxCvFGeOzr9BUGWcVbVnIf+6VXJVN2YI58lRtfci7FQ0pGrgWjtaS0+UKB748ZFdnqMMTgOwsPlapfvSycJQmM8qCVzCPmv47T4TIPqq1339DlraepAyGKB55r8eO/bjHgQa1txexSze9ktDVdMsH8k6ibtRUg3F1cTI52yTMiLnxObwmOzg1sodbC06sTfCvTitFbxMsX/lIquVYyZyu5J6c/wCdp/4/slbScAf85T/x/ZLtt8inbktvU+ljIVScr1zIO/Kf/wCj2SpOhg78p/BUeyXPbmq57fefys+kf07+nH+3D/IFSeMx1+gqpp17TPxHB7Q2NuIBwaSGgG2IA+ReNvV7n0Llj8fT4oyld6TvempyTVP2fkmdvGd+Cyu+S/DSsvtqI/8AqyVx+5Zje10IYtHse4ceocZvqHix/wDUX+sonvx1lnwU4ObWvlcP3/ycfka89qrbWzxxB2Ka7l+TTfTqbzzFDKgcXtCme5fk0v06m88xB0+iIsqIiICIiAiIgIiIINv2fE1T1w+fjWidB7FvXft+Jqnrh8/GtEaFOpWBnqoZf3HhtqH4LDTP99f37Vmat/FHP137PDrvz86j1Q/M7fT6efWqjy6RWVU7JVHO7fT/AEVtUHL+6Cn/AIZVOkPGZ1r0DxCvFNym9akqybivLWkmwRxVCeQhp5iLEari4JHgDh2qonG9NpNsFc5jnAxyhscltTXFw4N9/myHCbbJ89S25peGnroZKJ7XBsplhZJxbCaEuJLRe4LXRuIJFjgPOL6F4Ygskja0hoOFlrMfG4WfERzOaSOtbm3EboqWSF84YH1LYXSYg0cPPG1rQQ7nmbhjZJzlrHanNAkjROk9Hy08z4Jm4Zo3YXjZ0Ec7XCxB5ivDAGgXabHMHYcyMufMEdhW792O56LSzMbcEdXGy8covge25/Jy5XLCc2v6SbAXB0rpCgnpZHQzxYJLWwvzyuDjicDZwytiFxYnbqopiRvMfIvWMcx8ipnAblrrAYbB2T3E8qwFxYG+3VbbkvT4SMV7WbbEb3AvquRln6FrR9LxzFfOEHMV8khcMVxYttiHyhfVkbc48K8yYQSAcRuLFubSM767EfJtlz9F2j5LY5gZ9Kke4Lck/SFS2OxEDbPndzR35IP6zyCB0YjsVPcjuRqa6TDGziAjG91+Dj/fI5TvmDM7cIzW79B8Bo/81hbe0jQ9xB4SWR4j47iMgSHCzbWswgWAUkSKsijjjLnWZFGy5OprGMb9wAXLe7XSDqivnleLOLuT+zAADIz0taGg/OxLdm+nuyZBCQ0gkOLWN2SzsPlihPGcdReGsvk8Lntl8ySS4kkkm5JOZJO0krMK8VPJ7QpluX5NL9OpvPMUOqeT2hTHcvyaX6dTeeYqjqBERZUREQEREBERAREQQbfs+Jqnrh8/GtEaG1D39wt779nxNU9cPn41ovQR1fjb7lYGR0g/Lo27R0XPoWBq3e5uR/XmsstpF/WbeU2y6ujrWCqD75a/vKqPJd73VvUalUJ99SozHJB4HIK+U2tvWjeSV8gcAW9agyBXggHI6l8Mg9wV5Lx7gqimxj2gtDuIdlyB5M+wEXV/onSMtM4Phkc1wcHAts2zgLBzNgNrixuHAkG4Ksi73sV8xdfgKDeW5HfAgrGiJwZDV7YwMLJTtdF0nXgOfNi1rIaYp45m4JomyMBvheL4TzsI4zHdLSCufHtB13687hSjQ27yrhAZL+cxjVwlxKBzCTb9YFBKNI7gqZ5vFK6P5sreFaOp7MLgOsOPSsO7e5luMMsBtqtO8dfLhFlm6Pd5RP5ZkhPNJGXDscy4t0myykWn6J2qsp7dMrG+RxBTRFabe0kvZ00DQP8AUkkPTxWRAH7QUo0LvfUcZBkL5zzW4GLtAJe4fWA6FVfunoY83VkP1H8IfAy6xldvnUsY/Ixyzu2XHAx+F3G8DU0bT0bhY0MY1rI2jJrQGMa3oAyA6VBN22+lTR3ZTESOALTLHYOf/pwP1hv60uoDk3Ju3Vu6TdtW1oLHv4OH9lGCyM/v/KkP7xt0KPNj2nM86mC/0hWT1crpnjEQ1oDWCzIowcLGMb8lgJsBtJJzJJXiooZWNLnxua0GxJGQOW3brGrnX2hr3xXwBuZBOJmK9gQAegXJytmqr9MzlpaXnN2LFYiQZWsHbBbLVexIvY2VFjpKmfGLSMLSbEB3Ne3ZmCLaxtUr3L8ml+m03nmKK6UqHSkucGhxOeBmEE3JLiBrcSTn6MlKty/Jpfp1N55iDqFERZUREQEREBERAREQYjdboNtbRzUrjhErLB1r4XAhzHW22cAbLQcm9fpuI2bCyQasTJowD08ctNuxdJog5ql3vNOW/wDDB6poL/zq0dvbabP+R/jU/tF1AiDlvua6bvb4Cb6/0sFvDwlkfvYabP8Akj46n9oupEQctDev01a3wI+Op/aKmd6rTPeJ8dT+0XVKIOVu5TpnvE+Op/aJ3KdM94nx1P7RdUoro5W7lWme8T46n9oncq0z3ifHU/tF1SiaOVu5VpnvE+Op/aJ3KdM94nx1P7RdUomjlcb1emhqoiOqaD2i9dy/TfebvH0/tF1MiaOWTvX6b7zd4+D2i8Heq0z3ifHU/tF1Sig5W7lWme8T46n9oncp0z3ifHU/tF1SiDlXuU6Z7xPjqf2idynTPeJ8dT+0XVSK6OVRvU6Z7xPjqf11J9we9jpRtVGamPgKZkscr8Ukby4xuDmhjWE8YkAEm2ROvILoNFNBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSERMWFhUVFxcVFxgWFRgVFRgYFhYYFhcXGBUZHyggGBolGxUXIjEiJSktLi4uFx8zODMtNyguMSsBCgoKDg0OFQ8QFysdFR83LSs1Kys3LS0tLTMuLSsvLS8rKy0rNysrLzcrLys2LS0rLTc3Ky03Ny0tMDgtKy0rK//AABEIAPwAyAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAwQFBgcCAQj/xABVEAACAQIEAgUFCgcLCgcAAAABAhEAAwQSITEFQQYTIlFxBzJhgZEjQnKSobGywdHwFDRDUmJjgjNTVHODk6K0wuHxFSU1RHSjs8PS0xYXJFVkteL/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQID/8QAIREBAQABAwQDAQAAAAAAAAAAAAERAhJRAyFSYRMxQSL/2gAMAwEAAhEDEQA/ANxooooCsq8sXHMTZuWEtNesp2+0rhRdMJtkbN2Z98BvpNarWWeUboRicRdfEC6bibpbIJ6vQAhddASJ0FBmh6S4snXFXx6TduGPYZpzheOYkn8ZvHf8rcHOO/nv66r/ABBDZco6CRuK4tcTVfyKnx/wqjTuGYi4w7V26fG6/wBtOMczAaPc/nH+2s2t9JFH+qWz9/g15d6Qq3+q2h6v/wA1BN8U4neWYvXR4XH+2q9f4/ihtib386/201v8Sna0o8P8KaPiT3RVE1h+P3jYvM2LvC4rWRbHXuMwY3Os0nWITwn00y/8R4v+E3v51/tqO/CG7z7TQMQ35ze00EzheN4gnXEXT43X+2rv0fuFwM7s3i7H66zS3im8fGakcNxUr+RRvFZoNP4laULIMftH7ao3EMfcDQLrgTydvtpi/H//AItr4n91Mb/E835FB4CgeHit+CReuwIBm4QQWmNm/RNL4PjeJzCL94aj8q/21CLck+b8lXLoh0IuY0ypAXmYBjx10oPorAu7IpuJkaNVzBo/aG9L1GdHOFHC4dLBuNdKT223Mkn2CY9VSdQFFFFAUUUUBRRRQFFFFAU04rjLdmy9275iqS06yO6Oc7eundVTyoj/ADbe/Z+kKDNLnSbg9xix4W4k8rpQepVYAVReNKly/cfDK1q0xlLedmKiBpmO+sn11H3t6WwW9UeC3cHv7nquMKUW6ffG8f5dh9VWDh47Xs+anGXs2/2/roKpc12Fz13ifqpJOHs50MeL1IYsaL4N89RV77KCTsdFLj69baHjc7t6XudDLq/lrJ8Lnr+aq8RQooJN+Ftb3Ib4Nw0TGwceF56b2Bv6qtGBXR/FPqoKxcDnm/ruMaQNluc+01duJedc8V+aq5jBp9++gnejnSbA4ewtvEcLS/cBYm612C0sSNCpiBA35Vqvk06XYPElrFjCrhWiQoKnPGp1AG2/tr56c1fPIz/pK14P9Bqg+iqKKKAooooCiiigKKKKAooooCq70/wT3sBet2lzMQDA30YE/IKsVRfSTjdvBWGv3ZIWAAN2Y6AD77A0HytdtnMRzBg6jSlMKIOunrqUxvFV624yYWyVZiwNxrjvrqQXV1nWeQrmzxhf4Dgz4m8P+dVDrBY62p1YcvmpU8StRb7e2adDz2p1gONj/wBt4b67kfTvVJvx9Y/0bwz+etH5rlQUjE4hSBBGgI9pqNukd49tXDHceQ78N4f6mY/Qu1A4zidttsDhV+CcR/3qoiCvh7RQo8PaKUuEEyLaL6B1n1k17bIG9tG8es+oigVsuBuRy51PYTidoAy25HI8oqOwHE1Q/iWFb4Yv/wDdAq38M6SwNMBwseLBfp3CaCFxvFrLF4bciNDyFQ+JvqRofvNW/ifSBiPxLhPqYMf6N0VWcRxYk/imBHwUun/m0EOUnu9taR5FOE3Wxgvhfc7YbM3LtKQB6TVGHEm/g+GHhbf63Naf5Iullq2/4LcQIbzaOui5tcqkE6bwI50GzUUUVAUUUUBRRRQFFFFAUUUUBVC8sy/+hQ915foPV9qi+WP8QH8cn0XoMEu0iedLXaRbn6qoDv6/qrg/f4tKH6z81cN9/i0Hh39f1iuOXq+quzv6/wC1XH3+QUAfv/So+/y0H7/0qB9/bQeff5BXQ+/tNc/f5BXQ+/tNB4PsoFA+ygcvXQerU/0OE4zDj9da+mKgFqw9Cfx3Dfx1r6YoPp+iiioCiiigKKKKAooooCiiigKo3li/EB/Gp9F6vNV7p5wb8LwVy2CFdfdEJ2lNdfESPXQfNl2kW5+qlmBImCPvyNJqk9/qFUcnf1/VXDff4tSeHwKtumIPwLYP10tc4WgH7njPXYXujvoIU7+v6xXH3+QU8xNgLst4fCtgfXUfccjl7RQKH7/0qPv8tNziPD7/AONHXn0UC/3+QV1z9f1mkbdwnkT4CamcFgA2psYtv4u0CPlFBFj7KBUziOGKo0w+NHw0AH0aibqR71h8L/Cg5WrB0NMYzDn9da+mKr6TWgeSPgQxOMDuezYi4V/OIPZ9UxUH0BRRRQFFFFAUUUUBRRRQFFFFAU24i0WrhMwEY6b6Kdqc024ncC2bjExCNrMR2TzoPmDid8uzOo7Lszieye0Sxle1Gp7zTuzxZzh0w3VL2WzZs+upYxGX9P5+/Ri2E7Kl0IJ84lTO/Ou8LYtG6BsmbmWELPONdu6qfi69F8VeQgiwG0I/dQNxHNasmMx18gn8Gif1yH6qgMFgMHni0xKx+/XB3+kHaPlqevcJwvVzmfNpp+EXu8/p90VmqreK45ctAhsOTJn91SPNZYiD+dr4RWZ44mdRHrrQeI8Pw4cB2cJrJ664SNNNyecVSON27auepkrlQ9oljmKKXEnucsPVWkLYDHRg7y9QjqoNs3S0OhxMlI7MkA2WO/IA6Eg18D0/PUxgcn4Pic5IujqTZQIcrnORcLDKQcqnSSIk0xsAllzJCyJ9zA0mDyoFuGzmECfXFaz0avYgIMuHB/lgP7NUbF4TBgTYuFmN4gLlZQLUGNSBrI35yNoq/dFuHYYqM7Eafv7j5M9QcdInxJUzh1H8vP8AYrMeI58xlQP2p+qtR6R4LDKpgifTeY/O1ZfxG2mYxHtmkDJJ7h7f7q17yGBOsvGG6zqxm26uM2kc58aySxYzGAs+AmtX8ilo2sTdV1KZ7XZDArmIaTAO8CaDZaKKKAooooCiiigKKKKAooooCojpd+JX/wCLNS9R3SGxnw15SYBttrExAnbntQZpjvxf9kVnHEx2/WPpLVkxXS+01oJ1V3bQ9iPpTVUxWKDtKq287DvB7/RSBzw5RA0G3d+iftqUuoIGg3Xl+sw/2n2mo/hlp9ItufAegj7+NSV2zcge5XNx7w8ntH5rZ+SgbYFRmt6De3y/TtipHDr5nwbPy2sdPzCouziurZC6XBlKE9g+9ZGPyA+yuk4/YGWWYQLQPYb3i4pW5frk9p7qo5e+2Ze02yczrNnDk0pwu+xKSzGTa3Y83xZ+cTUO3F7Uqcx0CT2TytWlPLvttSnD+NWUK5mOhtk9k+9OIJ/4q+2oJAE5BP5i/wD19o09toMtzQflOXob7+uoW1xW2VCjMTlC+adxg0s/TU+oTU1hWZ1bJaumQ8dg++zR9Xt8YoR4wohtOb/8TE/3eyqti/OPifnerZxmzcgnqrgnNusbvdI+S4PYaqeLBzHskf4t/wBQqCx9BT7sPvyrT+Ej/OWH+Dc/4bVj/Rzi64e4GZGb4Md0czWqdAeKJjscLiq6dTbZobKc2YZNwdPOmlGp0UUUBRRRQFFFFAUUUUBRRRQFI4xM1twOasPaDS1FB8q4myUGRhlZZDKRDAzzB2pGyPnHysB9dbF5Yuh6XrJxlsBbtsduB54kDlzrHMGzW2BuKRBUwdJhge47xG1UaJc6OCxaa4L9yQLRUQBmNwvK77qEM76gjlNLi0DbBJbUD3zDl41EWumGFKFeptoSCATdc5SdmjJrHd/fVR6WcWF64iW2m3bQKImC0dogHfkJPdUE1xtBrqfjE/XVQxm9N2BrmqEmoWlaKB5w6Mw+2K0vo8LeUS8fyrD+1WUUZfRQa1x57WU+6D+dJ/tVnuPZZMH5ZqIC+ilEWgc261/yHYRw9+4VOTIFDRoTMwDz2rOehnAjjMVbszGY+Og1J9lfTHC+H28PaW1aEKojx7yfTUDuiiigKKKKAooooCiiigKKKKAooqM6RcesYGycRiXyWwQsgFiWbZQqiSfsoHmPwq3bb22Eh1Kn1isC6c4C0qIUIF22zWrtvPmYRqp740PxhWlf+bHDsocu4RmZQckt2Qpk2gesCnNAJXUg0h0g4Dg+KWhxC3eYobehRRBykgyCMwYHQg6iIoMGNsd1dLZXeKseG4UmS/cu2mUW2REBLDPnaC0GNAI276k8L0ewziVDeGdvtqopF0U1gSM0xImNDE6wTsYrRm6K4fub47Ui/Q/Dn8/49FVR+E4QPaH4UCrNcD9pQYViEymIWQB2ngGdNKZ8cwdi2VGHudYJcE5laQAmVoUDLqzrB3yBhoRV7w/ReyiuqlwHENqDI1G5Ejc7U3HQvDdz/H/uqLcM9til1FaBb6H4Ye9Y/tmlB0Sw35jfHaqjOzXdtavmM6NYS2pYq0xoM5k/3VCcUwPVXQMPYe4jKrAhXYgkkEEr4T6xQaF5D+D63cUw2i0njux+Yeutcqt9BMVmsNaCwth1tKYILL1Nq5mM7nNcYT+jVkqAooppxTiVrD2zdv3FRBuWMeoDmfQKBbE4hLal7jKirqWYhVHiToKRwHE7N8E2L1u4Bv1bq8eMHSvnzyhdM7nEboVZXDoewnefz27z3d1QGBvvbIe2zI67MrFWHgRQfVtFZN0H8qBLLh+IEa6Lf0HgLgGkfpD18zWsA0HtFFFAVHcY4xbw4GaWdvMRQS7R3Acu87Ck06RYdrXXLczW9SGVHIOXfKY1qrY68WuOzec0B+/TZB+iuoA2Jlt2NAtd4viLslnFleQXtsPHKQo+MwqOx3DLV/8Adyt3Y+6WFfUDTznNe3rsCaj8Jjc93I/PVQGgGNdQNSN9SYlToNJqHa8AwoAHV2gADp+CoBrv7/7zSx4VYyFAECnkMOoGmo0z8jB9VeYDEMtgviVVGzELoUkT2YAlpPdqa9ukrDQQDG+6k8mjT0TQR9zosr2WtjEOwUBu3bUHRwR2gxJgkeyoe3wk2zo1WtcRlt3m/V/8xKqq3mYAzvQS2A4dcupmlFElZZokgAnSD3inP+RX/fLXxz/00twtSLCfDufMlLR3UDL/ACI/75a+OfsrocEf98tfHP2U9C17FAx/yI/59r45+ymWOstabKYLEAggysHYjvqbio/jlmSp/QX5zQRKcG61hmbciSfGpTE9H7I9zF68oUxC27YnKYjNIJ2qGbEFGBB1BB9QImrGVa6WdecsO8zJAE6DxPyb0DrDC3bUJbe4oG5VYJ8YuQaWOJB0626PAHT/AHlc2MIQonLOXWAW7XeGY7eiPXUfjb2SS0Rp2tdzA1XlrzGnfQP72JA16+6umumkd/auEcqj8RgUvBXYi6IYjrkUnQDLEmYJJ9lcYS4r37dphIdipB5ELnAI5zofSKb8S4ibSpcFtbnW9os7BQoOQhRKkAdsDkNJOtAjxHolg7jaFrZ/V21Cn06tTNuhmEWJu3jOgAtoSeegBnb5qsOIUATt5pjuJIBX5/uKj+I3QILMABoQWVCRmttozED8nBBOob0QQgsb0Fs3AeoukMNCrrkYHQ6g+3cb6A1ffJrxC8ts4LFfulkTbblctTECdZQkKQdQGSq/gcQrKIuBzETnV2iSRmKkie0didANdwJfg+My3kYnzefepGVlJ7gDmHwI56BoFFR+K43YthS9wAMwRTDEFmIAEgQNSN6KioXG9FbFrCPbtm4EtJcZF6wkA5SeepGnMmq3xriFuy7G40S7952lidOQAJrQuM/i97+KufQNUDF3Ua7cUwxW5qIzEMTmWBGrQQQBrqKBvjGlRGxPzQflkeym1lshBprxfiBts6shlUF1QGWWWcr6zAyQpOpgMPCn+BZMtprwKm5AiG0O2xAaJgSQNxtVQ/4pdRkQgywBYLmOUkjTOoIkePIkbE1GWrzFwbzTmbKANQA8yAQASNZ1HvV7qe8TRCxZGUgQGysCBHfG2lRN3EBSc66L2h+zlPr1PLu9NBxiuMW8j2lu2zdjKbYuKbkqwZuxM7KTtTXCXAcsGdBXeJ4ev4MbmRRdhWZwozyzrn7YE65o8NKjsBaIjwHzUFzcP+DW1tMqu11UDMpdR1lyzbJKgqTAY8xTFLt5TD3VOpEi0RH+812NP8MZtWP9os/1ixTLGHQ/D+pqDtmxAE9ZhwPC/wDUles99fPezH6K3WafBsoj11AcS6SXc5sYRFuMp7ZcApoCSoBI1BG5PvSINPOHcbGJVpBW4hGdT3mdR6CQfSI9oPs2J7TddbhMpKmydQ1xEIDC7oe3vrtsaleJW5X9gfXTNvNveFv+sWaV41cIEDmi/LQULFXs2LtWcw7bZSN91J1XmDlj11fxiYOmgG3hy+SszxmGNvFJfgSktO2wjU90Grni8W5ErAUwQx1LSJgL3ySPVUVaLWOUoSTqBNQ1y6WM8qecFRTLncSCD73vBNIY4oJCbkssaCCCFO5Hfp4chrVRD3sK5Fu5bYq6NKs0+cIe3PeO1dU98juFT3DsZbYMQ7WG1a5aIVlUzLFDmBAlp1kCdKi1TzbcFSSWb1ZVA0A0IG2mjemuLnCzAAuOcr9Z2oZp02Y6AkBxJ26wxECA74rjGe4mHwwIzEu1y4NSFgG4w0ECQqjQEkDUTErwrg1hCdA9zZnuAPcJEE9ppGWGXRQAJ5HQQ3Ri42fEPcS51idVahshcqLZck5CwALOToe70irWIBzaTtrvA1j5T7aCKxeCtX1l7SyC0FRkuD82GAUo0ET3aiajcCrJfGHusWDrcCXOZGQqytGgdZHiPA1Yr9gXPOJGoIjfTx0P37qaXbCM+HBtwLd9FTuggqMux0B7o9JoLTc6K4dlRG6wqjrdALnV1YMCSNdwNNq8qdoqK8YSIOoNZLjcN1OJeAxuqVtsQxJa2pKI4GYSMtxs4Halp7p1uqX0/wCFhEbGifclzXQoObKIBuLGvZWcw5qNNoYK3i8KXiWOYaqYWVPoaM0egkiu8NxFQ6nE9krqDllJAiVb3o1mN55xpUR/4pt5Mwa3dGXMMvnn1AgD2D008xXFMgUulshmVOw4uGWEgwupUbEjY1UK3MVhwtwC4vabOsGTmmcwBZvRoAPAU1w1ouAsHIANWGVnjaF3VfHX61L3EbaKzlFhQScsk6a6Aak17e4yEVXZFysUHYcXCM+0qpkxOsTFBIvh81i+OfVE+x0I+aqvYsMANNqf8U6TdV7kiqXuqQdZhZBmP2fnqLtcW11KieUgCfQKC3cP/cbH+02v6xYpnjDofh/9Ve4Hidv8HtuDnFu+jOLfbYBbtpjCrqdATHor29hLjaBT50ydO8c/GgzQ44WnuPcDFTcueYQGzSRz3HaqY6KMeuuToGtAjWZCsqAn06Gq3xPCYi7cuubbS7loiIOaW05a+2rP0LwNwXLiqGh7asQ2kFXMBSYgRc21235UVd12u+Fv+sWa548/aA/QT5qGLJOdG90NtFgZhPXW3MkaAQjGT3UhxnEqbuUOsrbBOoMZbeYj5PloiIfBG4wWNyo9rLUldtmwxBUuqMYjzlIlZA5jnHfHqY2+IlWDKASCCJ12Mx6Kf4HjKYkM4WDmOYZgSCde6g6sYnD7G8qwsHPIfNObMVIMRy1J7iIMpY7ittQww6i67AAAAmypECWYCWWBqIkywg5or2zjLb5oTzSwOZ0QkrvAcA76DTWlLGLtlA6o2UiRMhteWUrPqig84UltLRZ7ma4xz3bjHz3JCynIKCQuUajSe0CCo2Ntkh1uggJMKVZCGYBX0BJ1BAgxqdKYcXx9jDkG/aZR52aGZJGgJKIROuk+qmmE6R4O64W1bzttCo5MGNz1cAaDcgaUD98WLGI66fcroFu4TIFt1nq3YGOyc+Un0J6rJYlm125TodNz6RPhtzmoi5llka3EiWBIghpG+WDOUgj27io7hrFOsWxdKIr5Ql1kKKFUllC3CrhSSIM5dCAIigtz9sEEFdQNxJiGIGp5aHnv40x4ff63F2EDZktuDO2Z40HpIAYnbY1QuK9OXYFVkknUAC2CYy65SS2gjRhS/kzxl3EcUw3WN2bQvOqKAEE2XSSB8Peg36iiioorxlkRXtFBjfH/ACP32xD3MLftm25zjrmcXFJidVQhtZM6b+umb+STiRkNibBB3m9eM+M29a3CigwweR3H/v2G+Pc/7VKt5JeJEQcRYI7jevEezqq26igw+35IeILMXsMJ0PbcyBqN7PfVI6UdFMXgbh/CrbZc2l1Zay0nSHjQ67EA+ivqeuLtpWBVgGUiCCAQR3EHcUHyW1iGJGh20007q7h9e0x/aNXfyn9B14euGODF91brRdZvdCCOr6sHKsLp1nj6qp+Ctt75Wn0qfsqoQF5vz7nxj9tHWMdM1w/tH7aeXbZnY+ylLCEcj7DQR91W2LN8Y0gbCojnQQB6I7QpzjUuT2VYn0IT9VbX5J+itkYOzicRhx+EsbjZrqnMoFx1QqjaIckagAmfTQZr0N6BcQxZLqGs2o0e9mVXJ5KhBLd8xGm9Wu75JMazFmxdosdCe0CY2mFE1ss0TUVjg8keM/hif7yvF8keMnXGWx6RnYj0xpPhIrZJr2goo8luFBDLfxakRqt+NRz83n3bVVsD5L+INdtjFYtTZDHP1d66HKyYyKUyhjpMk7netjooKPa8l2DG93FN44hh8qgGqj048mj4bDvfwuIv3VQE3bd1wzZObKVCghRqVI2nXSDs1eMoIg6g6EGg+S8orS/IrwO8cUcYyFbC2nRWIjO7svmfnKArSdpga6xoa+T7hgfrPwO1Ogy6m3p+qnJ8lWW3bCgKoAAEAAQABsABsKDqiiigKKKKAooooCiiigKKKKCO4vccdUqEgvcymCFJHVXGiSDGqg+qkLnEzbJRozAWYDNLN1lwq3dmiOQqXoIrNl5bmqYksV98dceUVspLIJ30N+8h7uVsbGvf8p3AdCD2jbAbUfjfUBjz2O1TliyqgKogD7Z+c13FTbeW71NPj2ReA4g7OFcLDdcOzMzYuC2TqdjMxy9NI28Y/XZM5NrM2V4HbcDWzO3ZM688uXdTM1FEVcXlnfO/ZGYosz2Ya5bzsylZWdEduU6yBzpnjMc63HCXJARyYKvlhkE5QJXKGbQzMVP0RS6fa6epJjMR3Db83Lirc6xAqENIMM2fMuZRB0VDHLN4VJV4BXtWMarLciiiiqyKKKKAooooCiiigKKKKAqFa/dHXXBLC2bmUZtDlSQuQDXX01NV5FSxnVpz+4Q1/i8tFsqyyNVad7V59x6bY9tcYXFOXZi0jrLVsLroGtW3PODqx5TUy9kEqSJKmV9BIKz7CR667ipisbNV+6gcDxG6yW9UMiypLAkk3LSuW0IG525+ind7GMbAuAw8wANQ7BiuSO5oPhvyqTiiKY9k0WTG5BLiLjm2AxzMbhdAwTIVydiYOgn1zOxFPOI3mt9WRJMPKzOYi0zAekyoqRivaYWaLj7RHC8czSp91IyEvbYMvbzTvGWMuwkwy1HYfiNwwTc0YAsQVYoDcUEuuUdU2UxBze+M9nWzxRFNt5ZvT1Yn9INeIOCy22V1Gcq7dqQiIxAKwG7TETy9MUqvEbhZU7GZ2QAwYAe09zaZJHVxuJnlUvFEUxeV2avJG8Lxz3CM4XtW1uDLOkkggzvtvpTbB3r3U9ZDMzKI7WYSxjNkAGgGsTyipuKIphdl7d0SuMLYcsCwIfq5Pndm91ZO25A7tCT3VzbxLi1eOY5lYgAwzWx2RJgdrSXHoI3qYiiKY9my8oO/jIIFq91ikAsZVsp6y2o7SjTMGbT0aRBpXD4oi9kZ85LOAEdSABmYBkiVAAiZ3jvqXiiKYT47nOUFcx7qzkv2cO5N3QapcMrryCI2b1Ck7WJu9ks7DtWQxkZFzIjEERrmJKj0kVYYoim32nxXyeiiiitOwooooCiiigKKKKAooooKVxbgbvduNbw5CErnGXDDrIv23JC5ouyquZvQVzaakiu8Pwa7lwoOHh7Tqc8WBltLeZgpdWzoer95bBSWyeaTFyooGNq3fF64WdDaKr1ahCGDdrMWeTI25eyNYC1wvGFWtXFslWa29z3ZovE9Y14FuqzKC3UjKQRkBURVtooKXhOF4lsj4ixmxLNhLnX5rXuIS3Z6+3mBDDtpf7KKVbro2LRZ7fX9c2bq+ojswW62YXzhGWJzc+6ntFBQeE8FvWLLhsF1xZMOhR/wcobiG4Gu6v7oAHks0XGhf2ZPCcHZb+EZbLDqlC3LriwGYDDvbAZkYu7ZmQZT2OzIPZWbXRQVXh+LxDYm5bzOcqYnNrba2G65PwYLl1QhM4hgCYPnRNO8DhvcsC9pCVtoDBgOFOHKgHMQZnKCO/fap+igo+A4DeUvNmMxtliepAZreKFwMpRi1zsFiWuw3ZWNWaJHjnD7rYhLqW3ZVe2x6t7a3IFjFocudgNGvJvyY1Z6KClY+1jRZvC7ncth9Gm0FS8LCBVVUMuxvgtmyrBbTQCbrRRQFFFFAUUUUBRRRQf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEA8QEA8PDw8PDw0PDQ8PDQ8ODQ0NFREWFhURFRUYHSggGBolGxUVITEhJSkrLi4uFx81ODMsNygtLisBCgoKDg0OFQ8QFy0eFx0rLS0tListNys3Kzc3Ly8rLisrNTcrKzc3MC02NzErNy0uKysrLS0rKyszMDcrMTcrK//AABEIALcBEwMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAgEDBAUGB//EAD0QAAIBAgQEAwUGBQIHAQAAAAABAgMRBBIhMQVBUWETInEygZGhsQZCUsHR8BQjYuHxM0MkNERygpLCB//EABkBAQEBAQEBAAAAAAAAAAAAAAABAgMFBP/EACgRAQACAQMBBgcAAAAAAAAAAAABEQIDEiFBBBMxUWHwIjIzcYGRwf/aAAwDAQACEQMRAD8A42UlMGxcx0YWXIuVuQKQEVGZZtllaoUOdzUIXMK2SU1pBBKoUuqVzKJVSjYqo+c50ahbGdyo2uRXNiRmNJXQFUpFUqg1QomaQ/iA5meUrCeIQaJVStzK2RmKi+Mh7mZSHUwL1IdSKFMGwNXi2JhXMeYhTIra6o3imHxCVMDcqgymZKdRF0WQaYsWTCLQlSoiKSdYTxCmqitFGrOBnzdwA9XKZU6gTkUtnNs86gucrbElUKh5zK8yRTOoVSkVF8qhTKdypzEVQqCrMzNj1ZFKKLIlkHYqRZAC7xCVVKZsW4Re5XKKhpweBqVFmVowvbPN2i325v3Gx8Gi/wDqEn3oyy/G9/kScohYiXn5lb0OviuB14LMoqrBffovxEvVe0vejmqxY5SSoa4WJKALiSYuYqLVMZSM6HuBfcWRV4okqxFWuRU6hROsLnJa03Uqpeq5zYzLIzFlOi64QqXMSmWU5Aa5mebsS6hW5AJmAayAD1jYk2J4hE5nNstSRnlIarIzZyiarKnIWpIqkypS2TKnKxXKsUyrFSl7mQjPGZeipR7hcS4XAskzpcN4emlUqryvWnT2dT+p9I/Ubh3D1FKpWV9L06T5r8c+3bn6b5eN8YtdJ3k9+5jLPpDWOPWWjiXGYwdrq6VlaySS5JbJHEXH6ilfddHzRyqk3J3k7tiWOTo9dgePwbXmdOXrY6VapSrq9WnGbf8Au02oVfe1u/VM8BKLW6aurq6auupfhsdUp7Sfoyc9JaxnDndF/mv5L1Ffgt9aFRVF+CdqdVf/AC/ivQ5NenKDyzjKD6STi/mW4TjOZqLi8zaSy6tvodTF4zyZJWn/ANyUlH0vz7/5Osak9XKcPJwlCT2TfotAnRkt4v1sbVUlJ9uxro0b82vmO8NjhZhfEO7ieDOSuo5u9P2v/Xn8zjV8DON7ea262kvVGoziU2s8piOoEtNHdPvoyqRSkykCYqRJFPmGjIpzExkZtaaY1C2NQyKQORYkpuUxsxhjUHVUtpTerAZoyAWlO9RxBc6yOVFjeI0ZVuqVEZpTRTKqytSKqyciirUFqzKJzKhnK5RJjKoJKQFkJFymZoIuj83tbVtgWqR3+HYBUkqlVLPvCnLan/VNdekfj0Dh+AVFKpUS8XeMXqqHd9Z/T125nGeLbxjdv4u/6mJy6QsYrONcY3jFtye/Nt9ynhfDoupkrqXiTjfM7qFFvZN7ZtU3c6eC+zqo4b+NxDlCLVvGlTzQjUk3kjSX3paNtv5c1wlCK/4qdWVSnFJwqVJ+arUv/pxp/dd7b30uNlVb6dKcYu6menvz/dffw4ceETq4j+HhZzvJN8ko6tvta5llhZLyqD8SMpKUlLNGzskrbLnr37Hq8HSmo1K0ZU/ErZouPiLNGLd37Lurv02NHB+COrU8NrLJatJtJR9WtX2NxpTtjKnOoy1O7iefJyuN4Os6dPxJurkivDcrSlGnbRZt7f08tDzDoyzKKTcm7JJat9D7LiuEKFJqpsr5c26j35I8HjfChOTpLfTM9+6j0RdTHjdPDOpp93nsibphweFjQV3aVWSs3uoL8Mfzf5brKbk+3N9eyEnNyf1f5ItaUd9+nKP9zgh6crHRwtTs/gclVWbcNUf7QHpcDJM664fRrK1WnGXJS2mvSS1OBgal7M9HgJ7Aee+0/wBj1TpOtTk504tZ4yS8Smm7KSkt1dpbfE+e1oZZOL5Ox9W+2XHIqjLCwd5zyeM1tTgmpKPq2l7vU+ZY+Gub4msZSYZBZMYWSNyhQsBKMzCoHIYyZIERQ8QSCJpFqAiwFG6FQnOZlIeLA0XEnMqdUoqVQHnUKnIrdQWUwHlIFIpbHgSxfTu2kk220kkruTeyS5s9Twrh3gLPOzrvbZxw/ZdZ9+XLqVcAwKpUo15L+bVUvCv/ALVG7WZf1Ss9enqbmzM5LTHxl1PDfhpyaeqWsrdV1OHwWFN1ISk4ympPySc1Z9cqi27dEeyqYKdOEZzgo53CzqydOlGm95OS+9taLtvfW1jmY3hMal8yi6iy3dOadWN7ZW1u080bXX3ltckV1bxynGbjxh0/s5wGpX8RKcpqpNOt4lWdOlJra6vndr9I+p6Kn/8An1KrP+biXN00o04QpQjRgu0P1v3PCUcZjMJeN3XppOLi80K0F9b7dTs8H+0c6kX4eKy1Va9KpJQe+qV75n6Ho6OGjn8s1Pq8/X7T2jH6kXj6e+PV7en9iMHCXmzVG4pNN5Iac8sbGlcPw+Dg50aazvTM3mkvS55/AfaiWZqWWo5aOcn4aS6LTbuW8f8AtHQhBXzynpFU1llnnZ6K9vifRlp5Y85Tw56Xaca+CKnpDifbj7RyrSVGGkIJZ+TqVLLR9lpp19EeHnNyf1f5I6PEb1ZOatGUryau2k5bxv8AmctxcNJJrvyPHzy3ZTL0uZ8WjDWUk/wpyS7pafMqcZSdldt3fdsIy6D0ajjJSW6/xYyJw9lJZltyZ6jAVqLsnlS5t2SseXqSzPp9S+hoB36coZ5eHfJmeW+nlvoXY7jHhRcKb/mNay5U119TjLEOK0369DFOd/3q31YBVnfq7tttu7b6vuZMRG6sXSf76CZeYHIkraCs04yFpX6/Uzs62yS4NhYhmZlUpjxEQ8WRVkSxJFOYaMiwi2wCZgAlMZSIYkmaQ05lEpDSZW2QDIJC4EEgmS2B7GnxBSp0LbRoUIejjTUWvimW06+zTs1Zp80+TPKYDFqHll7O655WdinPZp6PVdGjEtPVUOPyk4RxV6lKPtZIpSnLSzqR2klvZWv0Zthg1ic88HV8GnHyxus6lPnanL/Sja6Wn3paJPzeQhX6lkZ7uMnFtOLcW4txe8XbddiDpVKM8qU4eWOdU6tO/hVHmUVTpZnaWzdrxW+WO9+TxHh9KUmnZyVrzjaM4u18st1dX1WtmdjFfaLEToeBlprMssqsY2bpWtlUNk+6+COTCKSslYAwVfEUvL4sakY38NzUs9N9U09ffcid5Sc5yc5u6u+Sbu0lyVxmyGdMtXPKNszw546WGM7ojklaSyrTVN++L/fzKlJNdV0eqLKiMk1ZnN0FTCLePlfxX9jPJSj7S9/I1QrP1NWG8OTtK6XZpfVMDmxmmaqUHvslvc24jDQg/Km13a/JIy1JX/TZIBJy+H1KpSJm7ev0FjG4ERjcdjQi21GKbbajFLdtuySPQcIrfwuHWIUIyk8T4OJbV5UaKXspcnz96A8hjIXXpqYVE9J9oMEqVepBew3np228OWqXu1XuPPTVm0axlJVOIli5issipMZImxBKEhcaxDNUiMwBYBRZ3Mi5BFyTK0ZsULhYCRWMRcBQGsKEB1+D4m68OXLWHpzXuOPYalUcZJrdO69STCvSZl1t66fMdFEJqcVNbPddH0YLNFb3XR7f2Mq1RqDqRmo14y0W/R7+58y3L0AtIK1IZSAicvnt6maa+du6enI0sqcf3yAzuJCZdJCWAsjWb01Zskowhdrzva7u0V0aSprNLfkjNVqObu9gKkr6jtllKnfsl7T5JfqFWSeiVorZc33fcDTwmrlk8sYyqJ06lJydssoTUml6pP4dz0delTg8TUqf8liqdOrvafjt3yxjvm3fw6HjqVRxafNPXo+q9GvqNiMRKbd28uaTjDNJwhd3dk3oA/E8Y61Rzsoq0YwgtoU4q0YnErSWZmjFV+S359jCzWKScRsLhY0iAQEpgDBEhYoAFaAlhQADm0AAAAlEEosCSLBcGzVoixDQwjYHS4Picryc5Oyi9Yyb/U7ONhClBym/dvd/hXU4fB5RjLM/a1s/wq2rNdanKvNOpJqK0XaPRd+/+DMqy0JTnLPFWUXp0XbuzVHHSg7S83a9nH0f5FuOxMKaVOmkrL3Q/uc5U9M3d89X1fzIO7RrRmrrXta0l7ufuGdLmtfqZ1VU6cZ3SlTtGXLTky2GKi0pX1azae1bm7c7AFyGzXFxds2qf3o9DfR4PSlHMqsbdHowOFa+iV32NcKCprNPfkjTWqwpXUEm+py61Rzl5nur27ALWqObvyK6ct07XT5bW5MsZTU0al/4y9OT/fUDTOpeMUtEkm+8ubf09xXcVPl70EmAstzJi8RbRb/QMXicui3+hzrgOmSV3GzmrShIgAKACLkhBcm5AFAAAQQAARpA1iLjALYLDEEkKBJBAENEgB0q2AdGlQrZ1JYiLtFKzp5ZNOL+EX7ymGLd2+UV5VyzbL9fcZpVW4qDflTul0drG/HYmlLD4eMIRjVprJWkopOrrJqTfPe3uAyU7yklq236vXmaq1N0pJNqSa0a/TkY8PiHB3i7MnFYqVSWaXRJJbJAaafmdktXsjXCOVWa2ebo4y6pnFzvdNq21jfhuJ7RqrMvxL2kB0sLiMjt9xvS/wB06UZdNPRtHJUVJXg1JdtzbhpPKs2jWnu5AXyiv86nOxkWpKS/fb4HQuUV4XTXw9QM976rZiTV7rkJRlvF8tV+aHYFdOWlnutH+pTisTl0W/0JxNZR29pnNk76stBW76vcgawWLQgBiABENk3BoRKSQCWFiolEgAAAAAiYNipk3CgZMUAHuSkJYZMlKmxBIrAkCGiVEohoLFiiNlIKGiC2SFyiggDuIhUPSqyg7xbT+p1sJxZPSflf4l7P9jjhYUPVwqJq6d18gkzzeGrzh7L06PVHRhxF21j8DNKvr0/MmijE4hR9foJVxUn2Mcoigsp3EGcQUSgiiWiUgArYDSIYCXJTBoFEggkiwWLaULkikpiJKSAAUUgAAMiSESBIyQqQ0QpkgsMkFiCFEdQISGuwGUCZR0Ii2OnoBnaFLZIVoCqQli4jKURGI2UlIuhAgilTL1TGhGxYgKJoVwNOUMoGCSFsapwK/DArSBovVMlUgMziLY1TgUuICWCxLRACSiQ0PIRkmAgDqJFiBQGygBSwADaGAAAeJYgAKeI4AQTlDKAAQMpAAESKpIAAVFvIAAII0U4AAF6iX0qQAA8qBVUpNAAFDgHhkAAyiWZAACicBXAAAqnTK3AAAjKLYAALE5QACLAAAf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMREhUSExIWFhUWGRoXFhgVFRUYFxcXGBUWGRgWFRcYHiggGBolHhcYITEhJSsrLi8uGCAzOD8uNygtLisBCgoKDg0OGA8QGS8dHR03LTctMC4wLS03KzU3KystLTU1MDc3LS8tLi0tLTcrKy0rNysrNy43LjctKzcwKy0tK//AABEIAMsA+AMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHCAH/xABIEAACAQIEAgYGBwQIBAcAAAABAgADEQQSITEFEwYiMkFRcVJhgZGx0QcUQpKhosEjNHJzCBUzYoKywvBjk9LhFiQ1Q5Sz0//EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAbEQEBAQADAQEAAAAAAAAAAAAAARECITESQf/aAAwDAQACEQMRAD8A7jEt16wRSzXsLbAk6mwAA1JuZjtxOkL3LC2/UfQ5cwVuro1rdU66jxEDn/AMfUori8dVTFOtF8aQ7Yxmoty69VUpJhjU0NgFHVG3rkhgMHUwuK4YlStVLth6/wBYBqvy3qIqOzmnfLfPUfW21h3CbNjcHhnpGkVHLFRHZaakA1OYtYXCDrEtZiO++u8u1sXhyVdgCVUlGNNj1XyA5Gy6g5kBt7doHP8AjfHnfH86jiScPSq4Kn1MRoRWILilhl6mJSotVBzGIK5WKg5Z1GRH1TBpUS1GiKlJByyKSZqdMnKq0yBdQToAJn/XUyl83VBy3sd82WwFrm50Ft76QMiJRSqBgGGx1GhH4HUSuAiIgIiICaBx7jWM51QUXCopyqLDu0J9puZvGOxIpU3qHZFZz5KpP6Thi9JTcknU6+0/94E5V6eYmkt6r3a5AtZRYG19Btt3E6xgfpExV75kceDBLe/qMZoPFqnNxiUfsIpdvWFOUD72b2NNg4fVNUimlLPuFUMqk5dwAbDutqR+s3JM114zj5W8Yf6TQpArUAL96vlv5LUAv75sHDum+DrELzDTY7CqMt/JtV/GcRrojVWDLUp1BcFb5Stu7qHL75gYJzasjamkw9V7ltfcp87i+wtisZL49QxOI4PjfEMEi5axZQL5H66/wi+oHkRO10mJUEixIBI8DbaGVcREBERAREQETD4xjTQoVawpmoaaM4Re05VScq6HU2tPvC8RUqUlerS5TtclM4fLqbdYAA3Fj6r2gZcSIxHFaqYulh/q7GnUViK4YEKUW5Vltp3AEnWS8BERAs4vDiouU7Egn2MDb8Jj/wBXDMbGyFlcrYdpAoWx7h1FNvEeFwc6IGDR4aqUuWpvrcMwuRYjLtbsqFUHwUbz5heFrTZSLWWmKajKAcoy2Dn7Vsum1rmR+F6TqVxjVKTUfqRIq5yhuopCqHUoSLFCD466yjg/SV6tenhquFejUfDDEgl6bpb9kHpgg5sytVy6qL5TaBM1cGGfOSfsXGljkLlfzMD/AIRLdbh+ZGTN1WJYggEG7hrMO9dCCO8EyE4r0sqYeuKLYCsc/M5TK9FhUFKmXYqiOag0FtV3ZRuRJvheLqVQ5qUTSytlALXzAIpZhoNMxZR4hb98C/haIpoEvootrpp+gHwlXPX0h7xLkQLfPX0l94jnr6S+8S5EC3z19Ie8T7zl9Ie8SuIGrfSbjeVw3EEbsFp/8x1U/lJnn2i/XUnxB92v6T0H9I3A6uNwZpUbFw6vlJtmCg9UE6X1B18JwriXAsRhmArUXp3vbMpAO2x2PsgR+OxYp40VG0Solgx27RO/mPZebDwzFqpV1qMpRi6PTytqc2jC49MjQj3Eg6++IZNAdO8EAj3HSY3Np3u1CnfxTNSb30yB+EfmN7Ld8T1UBXLljlFyWc6k+kSTe2+/j6phcJxANOtXIsKtXq370SwB/MR7DI2slKoMrVMQATcrnVwfVcgH33mZi6o5aU0XKi2CjfQd5Pebm59Zkva9Te24cG4h9axVCjuHqICP7ua7fgDO8M4G5A85wf6G8DzOIhyNKNN3v6zamPwdvdO9Sua3z19Ie8Rz19Ie8S5EC3zl9Ie8Rz19Ie8S5EChKqnZgfIiVxEBIPpZQxz06YwFWlTcVVNQ1VuDSF8ygWOu3gbXsQZIcZ4cuJw9XDuSFrU3psVtmAdSpIvpexn3hWDajSWk1V6pW4z1AgZhckXyKq6Cw0GwgZcSIxHA8+LpYtq1T9krBKX7PlguuVm7Ocki32raSXgIiICJ8Mig9YoVzMCq1CWyLmJzMtOwK5SbAmwHo9x1CE4x0aqu2IVbPTxuJoNW2HLoUqVJaoa562cUcml/7X1EyVx/B6jYv63TqKrLhatBAylgHqVKbq7WIuoNPUd95m4pnYIEZ1bMoayi1rBmLFlNuqCAR3kCU4nmItMGo5uxDuqKWtlYjQKQBewvb4wMXBcHqfWziq1RXYUEo01VSoQk5q72JPbYJ5BBvJuQbYjEA5RnI5qsGyD+z5q0zTPV006997E+EpWvWyg53vlUvmp5bP3opFM2vr3NbKvpXgT0Sig11UkEXANmtmGmzW0vK4CIiAiIgJZxeFSqpSoiup3VgCD7DL0QORfSx0SoYXDfWqCZbOqulyVIc2DLfUG9tNtZxbEV9dp6N+mf/wBMcf8AEpf/AGCedK1MwLCYjXebjh+hvEK9KnWpYZ2pkXDDLqDsVBNyNNwLazT6VEF1B2LLe+1swvf2T2SosLDaBzr6HejdfCJXqYimab1CiqG3yoGJNu65b8s6NEQEREBERAx8ermmVTtN1b3tYE2LeYFz5iRjUsTlC3fq5AChp2YJV6xOfXMyDy1t4ybiBDOmKAYKdLlgepexqWyAbdi7XJHWIF7Xn1cHVuXuc5WkM1kBvzG5py3KhshHiNNNpMRAhz9Zzt2smYWA5ObKOaCVJ01/ZEhrW1AlzD0agp1Fdc2pyAZSMpJtcEjUbkE2I28BKRAhGw1YpTXK11Vl7S6OcuSoet9mzXAva9hmGsSbiAiIgIiICIiAiIgIiICIiAluvVCKzHZQSfYLy5IzpFj6dHD1C7AXRgo72JUgBR3mBx3G8XPEWNTEvUy3ulNSMieFgdL2+1vNY4jQohrBWt/EP+mTfB+HVMtiAPaw/wBExuJ8FqDW49mY/pA1wYFHawuPMg/pOp/Rlx6vSxCYOpVarTcEJnJJQqpYWJuctha3lOahGptcqfcR+k2joRxFf6ww9R7IoJBJO2ZGUXuB3kQO+REQEREBERAREQEREBERAREQEREBEoeqoKgkAsbKCdSQCSB46An2S3i8XTpLnqOqLcC7EAXYhVFz3kkADxMC/Ewa3GMOlZcO1ektZxdaRqKKjDXVUJudj7jM6AiIgIiICIiBFdJ+NJgsNUxDkAKNL+PkN/Lvnnbi/wBJOJrVWqKiC+xqAu9u7YgL/CNJ03+kHVIwFJQdGrLf12ViPxnCGwiilzOYO7TTcqDl33F/wgTp6f430qY8kP8A1S23TrGn7afc+Zms5x4j3z5nHiPfA2nDdNKpNsQqVaZ3stnA8VOx8pMmmt7qbqbFT4qRcH3Gc+DjxE3bg7H6tSO+lvZnI9wHwgdH6AdL6lOomGrMWpMQqE7ox0UX9EnS3dOsTzaWI1B1Go07x7Z6QptcA+IECqIiAiIgIiICJYxuMp0UarVdaaLqzOQqgbak6CV1ayqMzMFFwLk21YhVGveSQAPEwLkREBERARMTiWOWihY6nWwuBewJOp2sAT7PGwmK3G1sbC5FRqZ3IXIXuSVBI6qg7aZh5wNK41w3ipxv1oUlYrTxSUDTr3FJWpWpfs3pgc1mAJJJDGw6oUXudJcDjqpoM9Ou/K57AYZqAKYq4GHqDmkBqIQvlJBIJ62s3F+LkMBy73YgEMOyOZmY6af2Z0F9x65fpcTRmVQGBYkWIA+yrd51uGBsLnfwNg0CpwPHMalKrh81bE1sFiGxKGnyqZoJh+cDdg4IajUCgA3FQba26bI5+LKpIYWy5s5J7ADWUkAfaUFh6hKV40gfI4KHPkANr9mkbkedVRpfx7jYJOJj4PFrVFwCNjZhY2Iupt4EfI2IImRAREQEREDlX9If9xo/zv8AQ0r4RhaCYKjVelTsuHR3PLQmy0VZjtqdDKP6Q/7jR/nf6GkfxDH5cBgaakE1RQRhcHahnC28SyqBfy74tyasm3Gx4ChSqU0qCgEzAHK1NAwv3MFuL+2OI1qGHQPUQBSwXq0i5udrhFJA0Ou0+YGpWFJWYLY3YXzdRGuyq+UfZGl7bDXxN3jNdqVBqrCmQgzEasGI7IW9rEtltM71q53jV/pGwVUYTEODTFEILqBZu0oH2fH1zR+B/u9LyP8AmadG6fYkVOE13H26SNY7i9SmbTnPAz/5el5H/M0sc5x+dZdTY+U9H0OyvkPhPOFTY+U9H0OyvkPhK0uREQEREBETAPE1zutuzoPF26uii1rXdRe+hOthrA17p/w+tWbC5adapQpuz1UwzU1q81VH1dxzCFKK2YkX7WQ2NpAcY4VxismDNWnTqmg2FqFVxBplq6VKb1alZVpFSBYr1TZeswDEqF388VUCkSCFqIz39HKqtY+wnX1euW8FxfmMq5LFgCRmBZLoXuwH2dMua/aIECBxLcVKqAEGo1QhXI+s0P7QsGFO1I1QSoa9i1gbLNp4dTqLSRar56gUB2AAzNbU6AD8B5DaYK8cGa2QkZyl1Jbsite9h2hyTde7MvlMh+LUxtmNyALKdbutMkE7gM6gwM+Jj4XGJUvlJ2Dagi6tfKwvuDY+6IFytRVwVZQwOhBF9DvLNTh9Jr3Qa6n16sT787X8QxGxmVEDG+oU9SFAJub94JDC48O2582J7zKaPDqaAALsQdzqQAAWF7EjKtr7WFrWmL0l40mEoVHL0hUyO1FKlRafNdVuEBYi9zYe2alT6Y4sgHncGFxseIVLj1H9nvA3tsIhLEopLWLab2Fhfx00lNPAU1IIWxBve7XJso6xvdhZV0PojwEg+iPHa+JfEU660A1HlZWw9RqlN1q0+YrKzKLixHdNlgWcNhkpiyLYf9gB7AAAB3AS9PhEo5Q9f3m+cC5Et8oev7zfOOUPX95vnAuRLfKHr+83zn0Uh6/vN84HLP6Q/wC40f53+hpE0OjIr4TDEVbOKdM3YXBVqS5kIt5WPzkt/SI/caH87/Q00zF8ewr4bDUxiKQKJSVls2jCmoZnFu4i2/fJfF4+uhGiyhLVbZRlIu5BOlmu12vYeMscUwor0zTepoSDoW7iDY+e2nnILC9McHTRQMRR02W+Xu+0baeyXMf0vwtSmwGJpLoD/arfQ5iN++1rWmflfpT06povDsQBUucoGurN+0TtNuTNI4IbYan5H/MdJP8ASrpDSq4GtTXE02zINOajOzZ1a2XNfT1Dumv8E/d6X+//AHDNcZiW6zSbg6EaHQ2v+E9IUOyvkPhPN77H2z0fTW6rvsNiR3eqVF2Jb5I8W+83zjkj1/eb5wLkS3yR/e+83zjkj+995vnAuTGbA0yxYoCTvfUd3cdB2V9w8JeSmB4+1ifiZXAxf6vpZVTIMqABR3AKysAB5op9ku0aCpfKLX/QWmJ0gxdSjhq9WknMqU6buiWJzsqkqtl1NyLWEwuh3FK+JoFsTSFKsrsj0wjqFICmwL3DjW+ZSVII77iBL/VksBl2JYeosGBPtzN75aPDaXo+He2lmVurr1esqk23IF5r1Dj+LbiZw31cHCDMOdy6qkOKYbJcmx3HWAsb2FyDNsgWcPhUS+UWvYbk6C9lF9lFzYDQXMS9EBERA0/pXQV+I8OVqa1OpiyFcAgkUqVt9Jdx/Dhyq2bAUEUU6vWApk6IcpFhc39n4aynHOjtHGNTeqagalmyNSrVaTDOAG61NgTcKJHv0Hw5BBrYwgixBx+LIIO4I5kCG+iTD1BTao1NlSpQwPLZhYOEwVNWK+IuJ0CY/D8GlClTo0xZKSLTQXJsqKFUXOp0A1mRAREQEREBERA5z9L2Hp4unTw10LowqEPUNMAFWA6wBN/Vbb2TlI6E37qH/wAx/wBaM276Uq2XiL/w0/8ALNDx/EdwNoGeegrejR9mMb/8Z8/8Bt6NP2Yv50ZZ4RjOYmu4khceAPmAfwOkDDqdBGAJyjTwxKfrTl3CUFWmKYByi462/ib+8zFr1rNUp+Chh6s2YEeXVv7bbATMwh6i+Q+AgVsoCkAWFp6QodlfIfCeb6mx8p6QodlfIfCBciIgIiICIiBYx2LSjTerUbKlNS7sb2VVFyTb1CRlHFrjCXw1e6Uy9JiubLnyjsnZ8pI1GlwRve0hxDCU8TSqUKgzU6itTqAEi4YWZbjUGxmNwHhNDBUxhqFwim4RqjuVvbRc7EhfVtvAowfHcOav1XnA10ORkIfNmWmrk9bUjKQQ2x11JBktIVei+GGM+v5GOIy5Q5q1CApFsqoWyqN9ANyT3yagIiICRWPwFR6mdXIX9h1RlseXXZ3vdSeyRsReSsQNfp8Hcoi5USyoHuAwdl3dl2NraX1OY3tYTLqYSty0RTYcvK4LXIKr1bG2tzcEkag90lYgQdXB182YHUZhfNurVEIVACMpyLY6jUevNMvBUawcZ2JGWxJIsxsmWyjskWe/n3/ZkYgIiICIiAiIgcb+mfhLpXXEjVKihT4qyervBBHuM5JWYNvm+43ynefptW+FpfzP0E4tUoBrBaeoGuXM1/WR3bGFk69Y+Bx60hYBj/gcfpMpuNA7Bh/hb9VmGcLr+ltbysUO7vPcNT7hCPqY1AHJJLPuzX9mgGw8JM8NqhqYI7tNfUBIgYeTOCSyAeXwEC8+x8p6QodlfIfCeb6mx8p6QodlfIfCBciIgIiICIiBB0eFVlvZlFyDozagFyUuFGVTm07RXXU6WyMZg6j1CwCAAAIc7K3cXvZdC1suYG6jUbkSUiBCPw7EEG1SxKsAebU6pPNsLW6+joMx16t+4TMwuCZKhbOxTraGo7b8vLoxO2V/vTPiAiIgIiICIiAiIgIiICIiAiIgc7+mn92pfx/oJyPAOALXtdjc+2w/ACdc+mn92pfx/oJxy3+xCy5d9fKrXb2H8CLfGXsG+UMe8nU+obDy7/bLIW3zO8W8Db/fhCPuIe7A+f8Av/fjJDD9keQ+Akbl79z/AL2HdJLD9keQ+AgV1Nj5T0hQ7K+Q+E831Nj5T0hQ7K+Q+EC5ERAREQEREBERAREQEREBERAREQEREBERAREQEREDnf00/u1L+Z+gnHLzsf01fu1L+Z+gnG4H2fIgwBMkMOdB5D4CRxmSlbKaa27Wh9Vqd/0gZlTY+U9IUOyvkPhPN1Q6HynpGh2V8h8IFyIiAiIgIiICIiAiIgIiICIiBC9JekAwfK6uY1HINzYJSpo1StVY2JsqKbADVio75Y/8Y4f679QtU5/K51smlrZsl79u2ttvXfSYvTnhVWq2HqUVzFTUotYZsi4hQoq5bjMqVEpMwv2c0189HX/rbnftOfy/7bLieXlvm5PM5OTNl/Z83P2fsZ4G49GukC4wVbLlNNxaxuHpVEWpRqqbA2ZGGhGjBh3SamqdBuF1qTYipWXKWNOitxlzrh1KmrlucqvUaqyi/ZyTa4CJ8JlBqH0G/L84FyJb5h9A/l+ccw+gfy/OBciW+YfQP5fnAqH0T+X5wOf/AE0/u1Ef8Q/CccyHwPuM7L9NeHLYOm42SqL+RU6+8fjOLLUt3wK8p8J8M+c4+J95n3nnx+ED40yUDXp22Grf8uw/EzGaufV7h8pl0ToPIfAd0C/UOh8p6UodlfIfCecMDhmr1EorvUYIP8Rtf2b+yekD1QLAnu0t+pgVxLfMPoH8vzjmH0G/L84FyJb5h9Bvy/OOYfQP5fnAuRKEcn7JHnb9DK4CcswHTG/G6+ERatZaZdhyqlMksQvMDB6gVkTSyr1gQ+86fiASrBdGsbd2ttNbH4GcU4Hhab1kp4pygSjVXNUYsaFbNSsyLUxmICVA6ZgMlPs320Adj4ZxSliATTY3U2dWVkdGtez03AZDYg6jUEHaZk1rhTmvi1rrqqYc0q1UUmpJXql6bJyg5JZUy1Te7Ac+wJOa2ywERECJ/rghVZqYGdc62e+mUk36osdvf6pexHE8jZSu6Zgb7ub5aYFtzlNvKWsRhEWpRRVAVi2YW3C02yi/gMx021MkHwyEglQSLWuNst8tvK598CPp8bUheoSzKjZVZD2zTHeRa3MXe176Xlz+uEAzEMFsljbU8wsqaf3mUKO8lh6r314dSG1NRsBbuAKkZfDVFOneo8JU2CpnQotrZdvsgMAPKzsP8RgY+N4iaTEFLqELA3sWIDEqlxlJst7FgbXNrCF4uhbKAxa+Wwym7DMGG+lipGttri41mTVwaObsoOhGuosQQdNr2JF/AmEwiA3C63v3nWxF9e/U3PfeBiLxukRcXIAL3Fj+zABNTfYXGna12klMY4Cna2QW8Nba7gD0fVtMmAiIgIiIGFxnhiYqi9CoOq4t6wdww9YIB9k4nxn6MsbScinT5qdzIU/FWYEH3j1zvMQPONXoPj13wtX2Lm/ykzBrdHMWnaw1YedGqPxKz05EDyhXAptlqMqEbqTZvLKdZsvAeimNxljSw7Kh+3VvTS3qzasP4QZ6HNJSblRfxsL++VwNN6E9A0wJ5tRxVr2sCBZKYO4QHUnuzH8NZuURAREQEREBI9uLoKjUzcFTYnQ6lUYdUHNrnABtqdNyLyEx6mFQhwR2iGOp7QCgEG+hGRdvCBZqcVpgXuSOrc2YBbuEOYkWUg3uDrpPlTi9JTlzHN1bqEe/WKAaW/4iXHdmn3+raW2W4NiQWYhiHzgsCbE5je51PfPh4dTGbQ6hT233TLlO+/UXX1eswKq/EVRyhGyZ73WxAzXyi92tbWw0zDxn1+KUg2UtY5stirDXqeI266a7dYRWwNNjYroAbAFgouGUkKDa5DML+uUrgKYKkA3ViQcz/aIZu/UEgG0C7hMatUnLewCm5BF817EXGo0321iMFhEpg5QRsNWY6LcKBcmwAiB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSExMWFRUXGBcYGBcXGRYWGhcYFhcaGhgZGhchHSkgGBslHRgWIjEhJSkrLi4uGSAzODMsNygtLisBCgoKDg0OFQ8PFS0dFR0rKystKy0rKystKy8tKy0tLSs1LS0tLSsrKy0rKy0rLS0uKy0tKystLSstLSsrNistK//AABEIANkA6AMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAABQMEAQIGBwj/xABIEAACAQIEAwUEBwYEAwcFAAABAhEAAwQSITEFQVETImFxgQYykfAHQlKhscHRFCNicpLhM1OCsmOT0hVDc6K0wvEWNFSDo//EABkBAQEBAQEBAAAAAAAAAAAAAAABAgMEBf/EAB4RAQEBAQEAAgMBAAAAAAAAAAABEQIDEiEEMUFx/9oADAMBAAIRAxEAPwD3GiiigKKKKAooooCiiigKKKKAooooCtL11UBZmCgbkkAD1NJPbT2kXh+Ga8RmcnLbTbM5mJ8AASfAdYr5y49xfEY252mJutcMyAT3E/kTZfTXrNB7p7ee3drBjDrbv2s11+//AN4UslH/AHgCn7YQDr3o6jz/ANj/AGtw+GxRu4jieNvoAwCv2zW3LaZuzztHUSNK4C8ucKG1KqqqdZCLoFHKB5VqMKvjTB76Ppc4X/m3P+Td/wCmtx9LHC/865/yb3/TXgQwq1KuHWg9K+kT2ywWOt2VsYq+hRmJyW7iEgjmSV2jbxpp9HHtagupgmxHaWuzGS5eBVzeZ/8ACkkzodN50A10ryVcOKt4Em1cS6sZrbI6kgGGRgymPMCoPp2xfVxKMrDqpBHxFSV838IvvabPbZkb7SnKfiNx4GvYvo/9rP21Gt3Y7e3GaNA6nQOByM6EDSY2mBR11FFFAUUUUBRRRQFFFFAUUUUBRRRQFFFKPab2ksYC12t9jrIVEBZ3I5Kvw1MASJIoG9FeW4j6VmcTZsrZX7d/tHb0tW1gxr9cbVz1z6VcQ2pvhBBnsrcwR/4ls6ZRO/MDxNwe50V4NhfpKaGS/jcQzH3Ws2rCFImd7xDbf5f4itcd7f4hVmxjMSMoEm6tk5iRMENYVR10fnzFQe90VxH0Ve117iNi618ILlpwsppmVlBDFczRzGhgxXUcd4qmFsXL9w91BoJjMx0VR4sxAHnQeOfTLxc3cYLIPcsLH+twGY/DIPQ1522lMeIYlr117jGWdmZjtJJJPlUfFsGbaW2j3s3I8o/WqKYNb1Sa/G5j7qFxPMGR6UQxWt1Q0uGMjr8akTiUdfiaBmqHpUqIelULfGY6/d+lWrPtABvJ9E/6aBrg0MGrvs7xX9kxtq/MKGyv/wCG2jT5DveailZ4/wBpbKALoQdFhog85132j9KotiZ3qD6lBormfo74v+04G2SZe3+6fmZQDKT4lCh9a6aiiiiigKKKKAooooCiisOwAJJAA1JOgAHOgzRXBe0/0o4bDDLYAxNzMFChwizt70EwOsR41x4+lzGveNk2LVveOzz3mMGO6YymNTrG2kyBQdl9LfHcThcNbGFfs3uuVLgAlVVZOWQQCTAmOteL4rjV25Yexibty6/areRrj5/qMjgZzA/7sgDx21Becb9oeI4km4/asgUm0jWLJy5gCNVhixYKCMpIGsiYrl8biXdwGQLEBmfuFXZZKlkXQc8vvRVQvvOuU6rMHnb3Og+fwqoLgncRqOXMqvJhyn766A8bdV7K3lKjTP8AvTOmpAJHPUSOXTSqnE7aKoAe1ePvG4q5WEx3Z5xGx01OlAnuXAToZnxbnmPOftfOtOsMFC+/aQAsT+8tgkjRdLdwPr/J+NaXMf7rWswbdmuLYdi3KG7IEAcgSYqpYwWcxNFdR7B/SEeFriALPbm8UK98oqlQwJMrJmV+qCY1O1VOPe2mL4jcV8QwyISUtWwVRSQRmgklm1iSTuYiTUY9mVC5ixNLLqrbOugFQPuBYPOwZvQch+pq17ZwOyXoGPxIpFhva4Wv8O3J6sfyH61U4h7SNfYNcXUaCOlVHp/A1GF4G+Mwqr+0louXcoZ7a9plMSDlAXL4d7NSvh9gcUNqbBudijtiMXdfsTcIGZkJto2YJIjd4iSsweJ4T7WX8KSbFy5anfKRDeamVPqKmHtvihdW8L90XFBVSCAAp3ASMoBIBiIkA0V6MfY7AOcBdSwTaxJKMEv3sk9m1xHBZRcYEI4jucjHKsYj2CwLqgto9onHXbDMbhcm3a7eVAIgT2QAMEidS3Pz3/68xn/5FzR84nKYeMsiRp3SRGwHKq1/2uxLrka9cK9qb0SARdLMxuAgAhpZjvzqD0LGeyGAVDcNkq1rGDCvbW9ch1uXQttpYswbs3tv3SJlttIz7V+yOBtYXiD2rDI9hrORjcdoziwxAU6ARdYQZ6yNAPO+Ie12JvsjXbzuUYOnuCHWIeAAGYQBmMmNK1xftbibq3Ee/cZbpU3AYhyoULOnIIn9IoDgx75HhV3Gpl1HwpDhseEOaDTL/ty2whgVPUaiqjr/AKPfbT9gxHfBNi6At0DUqQTluKOcSZA1IPMgCvfuG8Ss4hO0s3UuL1QhvQ9D4Gvk5XGjAzrT7hKsTmtXTauciGKH0YGaivp6ivDsN7Scaww943l099Vu6fzCH+Jq5a+mHFWzF7CWz4BntH7w1B7LRXnXC/pdwtye0s3rUCWbu3EA8wcx/prq+B+1mCxmmHxNu432QYb+kwaB1RRRQFeC/THxwXMaFsYi4TZQ2nVe7bBJPaCZl2nLOkDKOYr1j6QPaD9hwN2+sdoYS1Ov7x9FMcwurEdFNfPHDMEXOZpJJkk6kk6kk8zQLMLwy7dMKhAmMxGgHMnwHxp2cVcw65LdpLQkt77XGzFQC0mQshRoKdaIsCuU49ecobgIC5xbmdSSpbTwAAn+YeNUaPj75ae2ef5nj4TVV7jsZdy383e8OfyKU9qZ3PxNOrNxXsgs4NyXkfWCqbQBJG6t2hiedttdYAWeGWogk5gfIaUz9oOFWuxF+0ddmXoaSJiMtpvB0j1V83xhP6RVR+ItBWdDUGi3KccGWWFNPo24zYwzXDeAOYQJE0v4hjk/ane2IUsWA2iSTty5VN+8Hb4nDBbE+FeXceuS8Dbeuvx3tKLlvIBAAjqZBgz0BGUjrrtXJY2zLk/OlaQqy1nLVzsa17KoqtlrIt1Y7OsdnQR9gax2BqXs6x2dUQm3WMtT5KzkqCvlrGWrPZ1ns6CbhR3Xwkfn8+FdPhrUpNczgxldTymD5HQ12XCbZyspER+BEz8KqKlnjN+z7l1h4ST91MLfttfIi4LdwfxKDXPYpznYER8JHITqdTqfKq00HV3OLYW77+ERWO5TSkd+zh0upcVXtqHUlrZ74WdSvIMBqPEDWq1ltaYnCF1nwpg+g/YXjhxmDt3jJbvKSRGbKSA8csyw0ciSOVFeZ/QZxBreLv4Uscj2u0UE6BrbgGBykXCT5UVFWvpy4lnv4bCA6IpvOPFyUt+oC3f6q4izfCDlTb2quG9xHE3y+10oqkAgLai2IObY5SfMxzrZuIsAFIQmDtbU7RoGLRz16VcHPYviE86R3Cp7QMuYPBVg2VrbrOoHuspBIKmDtBEa9TjnDEjJaG2uQLqWymO5rB6dDSJrQJ1URvpAEa+XIE1cCI4PQHNqSZWNgIgzMGddpiKs2bcDlMRsBzJ1PM67nw6VcuqnJT9361TK69POojbFiEHnPrS2CeRptilBTVvh+vx5UtaTsIHKirNl4EgkeIkVG7eNayRy+fmd6juuedEWsHdl1HjJ9Nfyq7dHOAecHY67H8KW8L9+egP6U0NBpeObXWdd4mDsNNIHLzqI2uew6nSpbt0L4/gOvnUtzBZT+/YhgdbSQbghgCGPuWtJImTptrNBQcqOc+Wg+JrK2nZcy22K/ahiNI5jTmPiKsW8UVKm2iW9+9AutJTKSWcQJgnQCCxithjLpVgWzZ272YK3UHLI7k+EbDoKCqcLcyl4UKJ+sg92AdC0zqNIqC4rBihiVJB1WNOhzQfSr2NRrhd7hzMDvCjTeIAjmeVYPDBLCBoARt8n0oKMtvl06wY+O3I/CsLeHPT76cWcOwKSit+7BEosgACDIAJ0ESSdzVexwxWM3Lj94EDKAzZhsWkgMsKQdQdRG0UFNWB2NTIY/UQSNddD1Eia6Hg3sP2hJ7W3cHeVghIuI4JiF5jQmYM9ANQhxGEuWpJhkDMuddRKmDPMeooNcvhG+nSeVdpwjGK3ZyYPZ5WJE65iwPwbLrtlHKuORp2p1wTEQUWBudeen1Z6HOT/AKaoxxJlLnvAAcx3vHSNDp4jep7Xs5fZlUWcUCylwGsBJUEAtLXQAO8uv8Q61rj+45JE5bub+YMFf82HpXRcbx+EuriQXCJimzC4mGvFhF4XV7UPci4SMwlIAM7iIluLJb+iT/sR0RrjWLoVCysXu2bRlTDAWyCzQT9Wac8EwBuW2ZYgKSQx1gCTBAgmOUDzrbG+0Vi8LgYXLo7Ps7YfD2BkYWlXOL+Y3E/eA3Muu5HOrvsl7jjqjD4qaRKh+jxcnFrDT73arHgbTkfeBRWvsu+XiGEP/EUerAr+f30UpC3iIbt70DQ3bm6ypm42h3Gs8oOo12pTjToQSV0BUSTpB2lB3Y5E/V33FOXE3rxIkm428qDLaSRtEe9I1AB1gihi8PGihlESZIUsrDulogZARqT8dgKEGKvXJLA5Z5CCADyDA6aBZPOl928/XxprfUAax4nMAve+rG7GenTmNaoXFEAiDPTXbn8TQVGuN9o1C90jnVllqk+9RVqxbkSZ5/M7VYjlrv8AEaTEnx++jDGF5mI5SN9NJreOWmkT0259enpNEQnXeZ57nSquJ2+en9x8Kt3efLxnnzqnijr6fjr+YoLXCV94+QplhLL3nCWxLHz2mJPOJI2kkwACSAV2FHcCjnqT4Hb8KeLizbV7VokKWTPcyjM+/XVVI2XTTfUtQV8XglS5kDZwCVLAqQWUakRoBOkSfOq624C+E6DT55VMWCjXQSxquc7e6IidTudpgeo+NACBHIAnU6defrTLC8Iv3IyWLrSzNm7NwuVD3jnICwJWddJqjZweRg+ds6tKsCQQVIKMI1GvjyqfH43tTN1numX1uMbh7w0MsWM5pJoLr8BxMODbUamZvYUQVUE6G7O3Ib+dTLwW9Mi2DmUZcl3DXC066Kl0kiOgMc4pH+2oD7q/1dVg8uuv4zUtvidvTMikSJ1/hynr50DJ8BctZS6si5CuZgVUmNVVz3XOh0BNaLmAtFlBXvhZBE6PzEE9d60XiqOgt3Gu5O5IzZ17gIJAldSYM+Y157YLDqSDZu5X7mgPNswbQwcqxGpM5h1qjbDXCMgRypzXCdcokC4NGB5gkctz1qccRZkKt3szGNCzgLIEsdbgAAGve8SNKqmVy9ovdHezprIecpZSdJ1jb1rCMYUzmEuBqe7OYjy8j19aBTjrYtvNsgoQDpMCdwJq9wm4C09CGH3g/wC4Vk2toiQFM66sPA89B5/CmPGsHbS7+04b/wC3vEiIjs7hUMU8O9sOUHlFBvxpO8T9tAfCbZj4w4+Fa4DELce1ZU5Wc27QzEqsmBqVVm1aF258hNbYx81pHGpVspHUOCoE+ZU+gpVZR0cXFfIyNmUxqrocwInnpI8RWe+J1+3Xy9uvPfj/AF217gl0JcYtabKrk5S+iKHOcghWAPYXVGkMVJ0G5wbFC0hJ5ggDqSNP1PQA1yVu7cMK166VloVnbL3ycxA5SdD1LeNMcFEbHWNyWic4Gp6c9tR4U45nP1GfT069LvV024a0Y3Ckcr9jr/mr8/fRWtloxGHP/Fsnr9dT6cqKtYiNnzXHXeGYwUzTqTlnUTuJ32G+tUccskgTrO5Bzavr3dBzPJdD5mxm77zJ7zDUd33+7ry3jMOpHOKpcQtSWgAQOTl9tPeBIgEgDXeOs1Q09ilVrt12glcoBHIFcxyk6gSSP9NKvb+2oxAIGrKS3iREHz1j0qDCY57Vwuo6BpBIyCMoy6MGUTBnnrzJWcVxjXXNxzqdo0AHLSfE+OvpRC+5tS470xYaUvbeo0YWNh6fmB5j8K3K6Dy5Rz+fmaxh9hGmsfVPPXxrckxoTy8ecb7DeiIrjfpr9/rqao3dWPnGnhpVtzy+d9Pu/GosEs3J6a+s6ffUUww6RzGzA7/ZPTyAHlUsxAA1EaagQABLdBPxrQtp4RO2ggKCT4CD8mnaYUWIDKXvsTlt6Ez31YkgwQVgzyjwJqoprgQoz3eh30jQQAOW5130qvexpOltdDJk85+8+etNbnDwB2uJYE8h9RfCPrH7tOe9Kb+LNwkW1hep5+n61RTuI595vn8vjVc2R1n7/wAB+dMzgYg3J1EgsDBWYkaajQ6joa6PHeyy2Vu579oPbuW7ZGpWbgJBze/ELcgZJISdiKYa4kYcePw/vW6Wo6/0hvu1rpuNcPS0tlrbZhctBjJGYN9Y5MoyIT7slpAmZkBpe9n8KcK19b+VgLEB3UqDcWyXDhULaG6+2o7M6NDEMNcnh+yMBhZJ2Jdbtlo/hNskT4lKnu8MTLmDPaA+s+XEWQZgTftCUJkaMg86c4j2UIRGF1RmsNfbOrIAEKh1UDM75cxJJRVAUmY1pA1i5ZeP3lm4Bt3rbqCOmhAPpUw1OMbew+XtVDoSMrSHRssgZbqnWMzaTAPKpVCMM9kgMB3lMbKmrHSNTO1VrWOImQEzRmKquR4Ona2fcbwYAEbyTVC8MhzW+7/CCSPNGOoHgdR1NA2W5JI1DANmXy6eG/l41bt3SV7InuO+aI911EBl6E5oPWB1pdYxIvjfLdEwdp3JmTuZ2qezcJkHunQHwMDUeHdqizhRK3bJIBggbwGX3TtqNqp3rmuqsswCNSCJYtz8RHl1rXiuJKPmAWHAYyDvqG0nTvA6eVZs8UEDPZhToHUOuvm0htjoCKgzYbnofEHeQD+QGlN8E/e5aRudgHaDzB0J9Gmlr2gQbiEaanoynQt4ETqenlrewzaESADMcu6CZHmAOuulWBmCRctHpcTYQBDjTxj8qK1uD3X2hl3jw0+enlRUpEd2O0YH7TRmGYE5m7vIsCdMu0kaiTmo4y6OTCRoJXvE66aydtN/ICr91v31wKXJl5CZSdLhEFdS0b6wO6OQpdipy65gJ5ywgAADMQORmSATIHQiineAjTTfcgwABH4k85K+Gi/FHx69evI/lTBoIiOc6Tr9WfDdQOUbjotxA+esUFc7UvbemDbUv51FNMLquk+QJGuvOImgEanUab6agwNp00n4eOmlloA5nziPL76kbr46Cesmeo/vRFe5v6+nzv8ACteHggMdZ0iOo1ra6NR8/J5Ux9mcCLrqp0UA3G1AMKYkA76lJ8JopzwfCdki3sha9cIFi2JBlgYIMwVK3OeggnSdGT27eEtdvdbO78xobh0IyaSLIIEfagMYGRas8KFtu0xd0BbSrosZQtgyFRRpDXiDttbUiYuA1yWMxlzHXzcYFtYRAJ56Ko/KiNGN3F3QX+swVEkAd4wBJMDUjU/3rquD8Ow9q2uIujOFLpcRpQ2L6NNsFIOcHLBBDyLjEoBaadOM8Cs2MIjtdU3izRkbOl1D/CQrWyveBMEArlME6ZfC3HFu7jHd2yxatE94pGjOZGROZ5tuTzrUmpaocd4ol+Ft2iFViEduz7Ts8qrbskqozKgEDMzt4jaqGIxGIvQXuMwACjMzPlVRAA1yrEnTxPWq3GONgGECtGkx+7XwRNM3mdNNBSXEm6+t1zHLOf8Aan6Cl+ifZq4UaG8oM9bfp1isDKYy3FJ80P8AekJCjmT5CPxNYhTzPqKyuOsw3EMTZnK7CQoIBPeVZhSraMurCNoZhsSC5w/tSt4LbxlsXQocAkssF1WWMSyksgJdf8262VjlA4GxcdPdbToNR6jamGHxi3IVhDcuh8jyPgfjVDW5gxdxDWsKGdSz9kGKhiihmkkwB3VJg9KVFeY2+dv0+HSrmHxLWsw3VxkcarnSQTbZhDKCVAOUidvCnmO4et8WUwyviLzC5ce7Ath1D5FGQ5QrCF20zPlUv3TQcaso0jflHPpHjTlLournHvgQw+0DpI11OoPnHWqF61I/Hz6/r4+daYO+bTg+MEdZ/IifmKgscb7ypsQHIEfxQD6d1fk1ZcaZfq7ZeRHSKkxNpdt1JR1PP3h+p+FaXRqfOqJOE9y52ZMqRmUnmpkEH4MD4p41ZwBK6TJErMe9lLjXrOoPnr4UEfvWvBrg/wBJ7PTykt/Ua37Xukz7xdokahmJkdDp56j1g6WxiA9vfUZT/UAVnrvHP3RtRSfgV6M4P2ZjaDOvhHOs1KpljFPbXRGY9pcEQCdGjuidzIg6iR0gFZiW5+O6ypJDbAFRB0G0xMabVf4oD+0YjmO2uyILadq0kLMkiJgROu4BqjiLhM6GBuFLt067a5dB030rSKckadZ8JBUjrrpP3+NUMTvzjlPQbculXo6/wxvrrHTzP61Rv/Ph4a9KCudjS870wbal/OophYGhHh8QTz06xU2sefgfHf761sLpPoPxPMdANOU+sjga6b/j8/lRFXEqQfny+FdJwy1kwypOXt27xB1Fq2pLmI0YKLmmsyK526kwOv8AYV1Ycduq/VtoixMgfWOp5FUy+RpBF7YY8hLeEQBdrlxRsHYAKn8qIEQeC019jeHhEN2W926hgAKiG0ZuXLmYNbVjnUOoIDIwM+6eQtu1/Es+pYtoN9WMACui4njr62ewxFkhgFFs3EZHREyyiAgaMbaGeuf7bTYi5gbgvXHxl1CUTIqIx7TtLioiLnJ1uEAIWJjMzKPrRWeMWbl3MJljrdb7R+wD9kH4meUVoL/Zqqg6WVAHjdcmW+Iut6W+lPeCld9won4bfeRXv/G85J87Hj/I7tvxjhMbw8YfQgNeImCJFsHbTm/4VzWLtMCSxJJ67+ter3OGrcuNcbXn6muOx3CRcxBQGFGrHoo3rj+RJ8vp08ev45IA8h8KIPMV0PErC2wclskKYPhPUxqaoogYDMpXNMdD5aCvLj06XL1FSFQwkDXmOvjWb1nKTWqmDIrUSmOBxWYZH1P4j9R9406U54LxB7T9j2iradlz5xKMp0MsBnQFZVihBIOulcw2jSNNiKbM2a2H+zr/AKToR4wQfQCrgvcdw1m1dFu07PlUC5mynvx3wpXQrrHmp1YQaXXrIKmT7sSf+GxADf6WKN6npXQXuL4jE4dMNbsFlQS5to1xnPdPaNAJDd0ksZJzvrBgJsKVkZvdMo38jiCfQMxHkKyrfA3C1llb3rZOk+MEejAfE1reOp8zWvDSRfyNobiFW1jvCbbSf51zetVO2Z9ANeca0G4JZgB4gHpO5+4fCruL0EeAI5abeQ0gafZHpDhLQXnqQfuAIEHSPjNbYltOh+SdOXLw3qCzwie/t7p+R8aKzwaSWHUfmAY6/wBqKlU44wT+14jQaX8RrlLKIvvEkePhpNLLw+qdgDCgHQxqcsgAd2PKZpvx4ZcZittMTiDzGUds+pIGgI5gzO+9Kb7zrBnXrAkjQGesHQTrWois5jXyOkAT1Pj3en41RvevL5n41bcx+p8J5nUnUc6qYgevqPXagrE71QO/rV9qonf1qKYWDA35b+R2qW0BpMzOpMAD19Br51HaOg9R6n8dh87bhjy16Tryj1ojfDjvpy7w/HYncHemN693rzfzD4AAfjVCw3eWY94RvOn5foKkvNpd8Sx/CqJvZBF7ZczBRmmW7MglVLKn7zuSzAIM+ksJp77X4wviUJaQBbOTNm7MrLshh2QHu6hMqxHdBmlfsFdK4i2VAZszAA3TYGqne4NR5CS20GYNv28zDGvnzZgRMjn2JGncSVnY5RIikRTx+JgKJ+u5Pj2YW2P9rfE1e4bxbKrDwH+4Ug4pc93+e8P/AOmb/wBwqrav8uoj8x94Fe/y9vjMeXvy+V1193jcLpS/heOBuOT9YD8Qf/bSA4jSKgt4kqZ6Vw9etuuvnxjvuIYW8vDXzMqCGbvQO0CnLC9WkyPKkMWr9m2bai2bSEuJJEzyJJOvTlNU+JccN+0lpycqbCfypfavgDKsnrXG5u/13v6yDGkE+hqnyre8/wB+/wCla0jNbdPnnTjgyZgU65l+IB/I/GlSrXQezliT6/gP712541i3G/AeOdhbKG0l3MVZRcJKBgpVi1rVbsg84gqp1iKo2+9n0ABgwNhrynXnTT2Nu3g1zse0lkP+FZTEODnBRlRrqZWUwQwJIMacxpxQzjMVqx/eXtXXIxPaalkgZWJ3ECDyrzuhTcvkX1f+Mv5Flt3D5d5mq1ih33AAiSNf5iQZ9AJ50uvN+8HmPuRR+lXcQ03GOurGYg/Wn1+70qDe0Y16R0gaCD93rpUd86/p4SOnzNZU7Tygcus+nWaguNrQN/Z4TcUdWQeRLjn40Vt7KCcRYXTW9YXXxvKOniKKlU39q1y4/F6GP2i6e7lmc5bQkHK0cxyNI8SVO0egeATGw2+BiI01rpPpAQpxPFgA++Dz1z21bcER7281zeJMgnMT095p3+tppJO3hWolV2ccjAJ3Hp48tddd6q3j5/8AyTpVm4dZ11I3A11HP08Pvqrd8uZoK5qi29XqpuNaguWjp8zUlvyqBW2rcH5/SgtW3jw08tuQjx6/rWbu7eI/L/4qurCPnTXl89akzbHppz9KDfgF9UeXTtFk5kmJDKVMGDBG4MGCBoau8cxSPl7NGVLSKozFSzBWLFmIUCYYjbQKo1iaUIctzwP57VfOtWCvjTmQ9RlufEdm/wD5gppWWpnZYjuxJWdPtIRDD1UT5qaXYm1kMAyDqrdVOx8+vjNb1nGC86/H9ajYzWJrBPz/AGqWrjGY0Zz1NYPnRWGm61ItQiprddOWatWFrruH2exwty8eSFh/M3uj17nxpBwXCdo4H1Rqf09fwk8q6H2uxIVLeGHhduff2a+EmWjoo617bnHnb/Xn++u8UPZbjpwReLYuB0CMM72zA3hl1E9RrpoagwXeN14ganUlo1LEZjqdI1OppdTTJ2WEZzoXMD11/wBor570EdkzdB6GfwG/pVktPyB18NedVMGYlvT9fz+NTD5+T5VFT59uUeXTXTzqN31rWfnzqJj860HYfRtY7TiGFT/iq3/JBuT/AOSs11/0CezzZrmOuIQoXs7JM94kzcZRzAAVc3UsORoqKh+mfhDW8WMTA7O8qrMx+9RSCvh3FTn16V59eA0OhMCZJJ38dtOfLwr6T9tPZm3xHCvhrhykkNbcCTbuLOVgOe5BGkhiJEzXz9xn2J4ng2Kvh7lxJ0uWA11THPu95dz7wFWVCV+f9jynfXwqrc9PnTn+FS3bTro1u6p/iR1/EVF2Ttoq3G8AjH8B41dGgqvdTWui4L7H4/EsBbwl6NO86NaQeOZ4Hwk17r7D/R1h8DbBupbv4g6tcZQwX+G2CNAPtbnfTQCD5otgt7ve8hP4VsUcbqw8wa+yUQAQAAOg0raor4xa7G5j7q3sXxtI18a+yioqO7h0YFWVWBBBBAIIO4I5ig+PsQkieY+fnzqxhr2YfjXUfSN7JNw/EkKCbFyWstv3YGZGIAAIJIA+zHOuNnIZGxqos30OjL7w+8dPzHjULgMp07upIG9s82UfZ6ry+BqwrTUVy2ZzKYb8f0PjWkLL1krvqDsw1B8j+VQmmgcag9wncRKN5r+Y+FRXMGDrlI8U/eL8PeFSqX0VYOFH+Yo/mDL+VbpgwT/iA/ygt+lRVZau4LDM500A3J2FWLGAUawT4uci/Df4g1bt4xV90dow2+qix4c/mCK3xc/bPRvhbqYZAYlj7imQXb7RP1VG5J6cjFJsTeLMWY5ixLMx+sx3MchsAOQAqNmJJZjmY7nw6Ach4Vm3bLEKBJNa79L3/kZ55kWOFYE3rioBOuv6ev61Y9tcUO0XDoZW0IJ63D759Nv9Jp2bq8OwxbQ4i4CE6r1cjlHLxHnUP0V+x7cRxYuXAf2eyyvdJ+udStsSCGkgZh9meorla25uzwnEFRksXWETpbuEGfSrmH9l8cx7uDxJ/wD0XY+OWK+sVWBA0ArNFfL1n6O+LP7uCuf6mtJ/ucV0/s59C2LuOGxl1LNuZZbbZ7ja6iYyp5y3lXvVFQQ4PCpaRbVtQqIoVVGyqogAelFTUUBRRRQFFFFAUUUUBRRRQFFFFAp9qOAWsdh3w90aGSrc7bwQrjXcTtsdjoa+avaz2cvYC+1i8OpRhtcTMQrjUwTl1UmR8DX1XSz2i4DYxtk2L6Zl1Kn6yNlKh1PJgGMGg+SkYr4jrVgPNdd7cfRricAWu2x22G+0NWUSoHaLAgktuoI0nSuHU9ND9k8/1q6i0yg761nCcLe62W0GLaGAR9Z1tjfq9xF/1CoFvjnIPxH60w4ZxG7ZbPYuZWIglcp0kNBVhB1VTqOVUQtw/EqJK3QIBko0QVzTMRGWT5AnlW78MxYBzJfUKVDTbdYLkBAZAgsSIHOdKbH2pxmR0LA5w4zdmgYZ0ZCVKgZYV3AjQZj4Rc4n7X375c9giElGQhSexdHNztLU6I5aJMagayZJg5nH8LuWXNu+jq4juvIMHY+I8aiFMOK4y7iLnaXmUNAAHdUBROioo0EkmBzJ61XRUG8t590fDc/dVRHZss5hR68hTrDX7WEXOe852HM9PIeP56hTe4pHdQSeWmg8lrqfYv6M8XxFlvX5s4cwS5Iz3FOYfu1gwQVE5gNDImpq4TezfAcVxjFQu2huXD7tq3mAMDYkA6IN/ia+l/ZzgdnBYdMPZWFUanmzH3nPiTrW3AeCWMHZFjD2wiDXTdmgAsx5sYEmmNRRRRRQFFFFAUUUUBRRRQFFFFAUUUUBRRRQFFFFAUUUUBXD+1H0W4DGEuE7C4Yl7MKD3izEpGUs0mWInbpXcUUHztxn6HOI2f8ABKYldNFIQyZnuuYAECTm57b1xeP4BirMdthLyTl3t3B75IUbRJIIA3NfXtFB8YC+o5sPUVsMQD9pvUV9OcU970w//qzWeD7jyu/+soPnXh/BMZe/wcHeffa25HdYK2sRIYgEcue1dlwj6HOI39cQyYdddCRcaQQPdXuwRJBzHbbWvocVmg4n2W+i/AYIh+z7e6Nrl6Ggh8ylU91WEAZgAd+tdtRRQFFFFAUUUUBRRRQFFFFB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMVFhUWFyEbGBgYGBodHxogHx0dHR8YHR4YHSogGh4lGx4YITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OFxAQGi4lHx8tLS0tLS4tLTYtLS0yLS0uLy0tMDUtLS0tMC0tKy0tKy0tLSsuLS0tLTEtLSsvLi0vLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAGAAQFBwIDCAH/xABYEAABAwIEAgcDBwcFDAcJAAABAgMRAAQFEiExBkEHEyJRYXGBMpGxFCNCUqHB0RVicoKSsvAXM5Oz4Qg0NTZDRFNUY3SiwiQlc6O00vEWJkVVZGWDlMP/xAAZAQEBAQEBAQAAAAAAAAAAAAAAAQIDBAX/xAAqEQEBAAIBAwMCBQUAAAAAAAAAAQIRAxIhMQSh0UFRBUJxgZETMrHC4f/aAAwDAQACEQMRAD8AvGlSpUCpUqVAqVYLdSN1AeZArWm8bOziD5KH40G8mgzijjxhkFthaHXDIMKISnQ650gyZjQeO1DvS1xX2hZMqPe+UzHg2SNhzPmkd4qrHn6C3G+PHEJGVGaRrKswB+wqHuPhWtXH7ypBQmCNurX95qmhjDjRkGRUnbcRBY1A9QKC2sJ41dQqFpzI5AiCO7tSdB5UT4TxY06opUOrMwJMg+sCN6oVjEGyZHuzKI+NTDGLny9KDoOlQb0f8R9enqVqBUkSnXUgcvSjKgVKlSoFSpUqAe4t4wtcPRnuFHMR2W0CVK9CQAPFRAqnsb6drtZKbS3bbT9ZcuK89ISPKDWnpOyXV8pRchAUUwdJKYTE7bpOnjQvbYEVEz2UjYAb0G53j/F3j27x1I/Myt+nzSQaaXGI3S/aurg/pPuq+Kqk7Xh07rUhhPcR1jh8xOVPvNSDdrZIEEuueJXl/qwmptrooNLb5P8AfC/21f8AmqQs7q4RtcO+jyx99EqVYcN2Vf0jp+0u0osDoELT4h1Z/fKhTZ0UPp4sxNky1e3MdynVLHucJFTOF9NGKMx13VvpnXO2EmPBTeUepBrVcYA2sSw+CfqvJGv67cR+yajl8PK17JbUOUhSVeII3B945im0uNi5eDOl20vVBt1KrZ07BRCkE9wWIj9YDzqxhXJ9vhIBQ5IQsKGn1oPdXS/B14HbRogyUjIfNOlVE1SpUqBVA49xfZ2igh55CVKmAVAbRuSYB123qtOl3pDdDy8Ps3OqKUnrnZIJMT1aSNU6c95gaVVNpiq2EFLRgq1Uo6694B0HmZoOjGOkJlZPVtlaRutJlI8yEwPfQ7xF0woYuFsoZ9kJ1UScxUJ0AjQSBvqQapHEceW4olIypMdlR6wiBEyoR7gI5U5s8Qfy50rUABqoEyPFRGvvoJNzjjE2jHXFxBPZDiG1KPdOUZp8zThHHGLbJQhJ/wCyAPmQo71oRdPgQ67CDqoOHskETBCvpc9pqV4awcXAcWtxwFJjKHAkpEBSVEOT9A5tgPo6q0EVAYk7fO/9IvXCEpETDevcMqCKhnsQB2J9RTriDGFvJSgkZUaeKvEgbaVEWrQUe1olIzKPgOQ8SYSPE1UJy4mpnhu+t232DcH5oLCncqZUQNck7kGAmJ5moZNutaoSkk9wGg7hUijhd+JUEoHes5R9uo91AdvcaYSVgi3cDfzZKMiVEHrFPPJlZgp0bZERCCvlUe9xLgyuuPyJ+VrGSCRkT2CSIehKget7ITlMoHZGgEPyQgKCTctAnnJIHmQPSnFngzTn+espPcrMPiI+2gMcD4qt/wAp2ztog2yAMhQZhRUVgk6kbKQBP1AfK3meNwheR9ED6yeXpz9K51vcBeZTmIStH121Zk+8bVYWCYuzcWnXXBWVsiFhO6iB7X6yYO41CqC8rC+beQFtLC0nmPgRuD4GnFVr0TYu285cJZCktwlQCtxy7z486sqgVKlSoKb6S+jK4ccXc2MLznMtkkAydymYB8pB8+VQt3D7Cik9Y2QYKTMCPzTt7q62xa4LbDrg3Q2pQ9Ek/dXJuOYsvrCTKpJJKufifE86B1+U1L9s+7T7IitbqR9dQ/Z/Go1rFE85T6TW83bZ2cT6pou63O3WgBVMfmp+3vrzr8xkqPdoAKapfQDMtq8CNPjWKHUfXT7v7aHVUmi6y6gn1I+6tdzjbxEBeUfmj7yJ+2mar9sfSJ8k/jWDOLwoQnSdTz9KG6KODeDb++WFNoUhuYU+4YA8idVHyB9K6P4cwZFpboYQSQkak8zzPqaC+hXElO27yCTCFpKQfo5gZHvTPmo1Ywoj2lSpUHNnH9o2bhx5Ke044rMe/Un3/gKBru3UToJo/wCMh2kg8lKFCqUa0Da04bdWJltI8Vpn3VJ2/Cse04PIE/hS6uvFogVjKZ/Sz+P+u/Hlwz+/G39MpP8AW/5S1pa2tv23cqlDbMeffrvQbxHiCHHVKaB1UVKUd1E+fIfeaxvXcx8tKilnWs44ZS7yy26cvPxXDo4+OY7+ttt/nxP2hBVFGBYCp0BJ7KNFuHw+inyAk+JVH0SUj+GsZ3ADsNT4gcvXQetEvEeKKShNs2dVauEaTP0fL7gPGuryH68WabluzCdN3CJnl2eUaDXnG3Mwl3auuHM4pSj5n+CK02ZCeyNTuY3PiJ3Hh4edEWHjMCZASN1kSPLL9JR7h3SYA0AbTYHmI/jv5HzqVZwxaomTHszy8BmmPLUHuqSun20wEIJJ1HNZ8SdkDw0mfpRJbfKF8yEjuTB9CVb+gFBP4BaFGmZMHvPKPH4E85mITUnYcPZHituAhxOVxCYIJ3CgAZBBnlqFHbWhFsu7pS4r9IrUNTA9ogb6V6Xn0H+bWIiY6wRvGqFjuPuNNCyuhvDyxd3iCCISmPESff3elW3XOmB8fP26woKJ5QqFCPq7BYG2sr8quXg7jW3v0wg5HUiVNE6xtmSfpJ9xEiQKAmpUqVBHY+sC1fJgfNL3/RNcn4nAUQRAn0rqXjf/AAfd/wC7ufumuWniSdf4/iaBmLRJ+j7qyNgj84eo+8U/t7cHkPhTtdqY0CvQk0A8qyT3q9wrJFkj84+7vqQetDOy/t/CsmbQ9yvtoI9Vkn6p9T+EUmUgHQe6pR2101HvP3E02yQeVBeXQZAZfGxJQfE+1qfsEVaAqn+gNZUq6J5Jb9NXKuAUHtKlSoOd+PSOuUByec/eNCiB2qnOKZ+VXM/6wv4n7qhEjWgeJFY3A7NZoOlYPq0oBu4T8ailjU1MPJmaj7tr6Q2O/gaB5w+ntn0+Ob4pFarhwl5xR7yO/wAPgK9wN3K4PH7iD9oBHrWd+xldcHImR5GTPlrv4UHtvrA5annAHMpMz6eB76llXeVIO2nZG8Dmsjmon0JnkIMUyjSeZIB90j7efOac4enrHZPsp1+5P2Amgk7JhWqlEyrlPxPMncmscS4gZblFu2FqiC45r7hsP41rRxHeFCAhOhXv5f2/cajMHQkZVHmqJInL4+cxUt1Nhxc312tJdLu2pAMEDkRImJPLvppb8QXKDKXle/fwPhRNeXTcZDmABHbypE5gez7Ox9dKDr1CQoZJgpBgwSDGu3KZjwisYZ9S3G49qIE4+LgBDqEBwmc4GqtIjuHfHfW2xvHLd5DjSylaFShQ5HuPeCNIOhBINCQoqZQHLXrDOaYOmnPUnvkfxIrojp7g7H031o3cJEFQhafqrGihrynUeBFTVVJ/c+3hU1dI5BTa/VSVJV+4KtugguN/8H3n+7ufumuW1b+v4V1ZxO0lVncpV7JYcB/YNcrONEKI7j94oNtvy/jvrfy9B8a0W42/jvrfy9B8aDUpRnf6XeaxQdB5ffWSt/X76xT9330Hq/491Nlb/wAeFOV/x7qbkSf48KC3v7n7/O/0Wvi5Vwiqr6BrQJZuFn2lKQPQBUfaTVqCg9pUqVBztx+ALl6CJDywfDtGJ9CKFQdasnpR4PuEvO3TaC40s5lZdSg6zI7vEct9qrEK1oH6VVreOlY56wccoIp4Qo+dYI05SDuO8Uc4J0aXl60m5ZUwG1zGdSgeyopMgJPNJqYZ6Erz6T9sPIuH/kFBV1tbhLgO6FHQ9x7jRJcYYFgFW0aK7vPwmj5noVe53bQ8m1H4qFOD0WXjKT1Nw07p7KgpHuPaHpQVenCFBJ02UFenpp7vPxLbA05Drv2fsG3vBo/TwziLaocsl5e9GVYg7wEKOh7tO+hTGcKXbvFKkqROoCgQR9KCD5n9ruFBE9IDSvlAURAUnTu07veKiMOv+r0IkUZuspvWg0o5XEjsEzJ/N9BoBzk8zNBWIYW4ySHEkD6w1B9algmncXYKdSo6aCJ9P4ioC/uOsVIEDkPvrWlI5msm2SowgFR8NazjjJ4SNQFFgV1NkGye2VZlDuEacuZPLurDDsC6kB65gc0tkwTEeGm4+ImNJfBcDexK5ShtMJJ0kdlKRusxAyjfSJJAG8DarM/ufcNUi0eeUI61wJHiGxqf2lKH6pq1KZYLhjdsw2w0IQ2kJHee9R8SZJ8Sae0DLF2wph5J1BbUD5FJrlDEUFKyN4PrXWWJW5cacbSYK0KSD3EggGuV+ILVbT623UlK0qIUk8vxHcedA2tnu/7R99S11bNp6sJebXniYPsbaKgnmTr4Gm2BYZmU0tYKm1GVJTIUUhUKAJGUd0zzolxPBbJQ+bfdbP1SgOnccm1bxNcsubGVrpqAXhp64tZ2ZSArMXISZI2Mb9rbnGk6S3w1gOZpUhASgq7ROsch3mfXzprb2zqXwnKsIUrIpZZ+go5VKhaSEnISe8HxFEiOHrVKFkuO5urVlClJAz5JQnstiQV9kkqGwMdo5GfNjjZCYWoRAbLbilOZVpjIkJnNJ11G0D41Ghwk/j+FES8PbNtGT587Lz5k6KkwGyo+wRuNzy0qBXblteU7wDtG4nz98Hwrczluksq+uhRkC0cVuVOanyH/AK1YgoF6IcOcas87gKQ6cyAd8v1vCfgAedHQrSPaVKlQKgviHozsbpRWEqZcO6miAD5pIKfcBWeLdJVhbvLZWpwrbVlVlbJE8xPONqZ/yt4d3vf0R/GghXuhdOuS8UO7M0D8Fis2OhZrTrLtxXflQlPukqipf+VvDu97+iP417/K3h3e9/RGgL8Fwtu1YQw0CENiBO+pkk+JJJ9ae0ywjFGrlpLzCwttY0I+0Ebgg6EHUGoHiDpBsrN4sPKX1iQCoJQSBIkAnviD6igK6VAX8reHd739Efxpfyt4d3vf0R/GgPaieIeHbe9b6t9E9yhopPiD921DP8reHd739Efxon4d4ht71rrbZeZIMKBEKSRyUk6g8/EEGgpriToxu7dRWzL7Y2KB2wPzkc+Xsz6bUNl11MoUEqVGXKvsrTGggLIjyBNdM3VyhtBW4oJSkSSeVCWIca4O4IfeZWO5xpRH/EiKCiDaqJ/vVRPeGwftFbkKebmENtyIlwo08QnVU+nOrV+X8PrhXydEEkdlpUCJ7XY0gxyk6iQNYJOFFYW6pXyJpkLbgqhrKoAzBkpnkfdQU3gPAt5eKCsqlJ/0joUhsD82e04PIR31d3B3Crdg0UpUVuLguOERmjYAD2UjWE+J76IKVAqVarm4Q2krcUlCEiSpRAAHeSdBQm/0oYSgkG7Bj6rbqh6FCCD6GgL6HOK+C7W/EvJIcAgOJgK8jOih5+kVNYXibNw2HGHUOoP0kEEeRjY+B1pvxFjjVmyXnycgIToJJJOwk+Z8gaDn7jHhNeGPJSFlSVDMhaZTOuoIncECdT9E0x/LtyoQXFn9JKfL6Se6rpveNcNuWSHkFxuYKVoSfWCrTzGtDrVpgS9G1LZ1PLNEiN1BShG4EwDrWbjL5i7qrbW97SErfQ0G21BBUjN9GEohOvagJnYbmYrNFzcbgEAmZDaROs7lMnXWZq0XOAMMfUMl4mVSEide0IESrdJ1Gm51zaCp9routAIWtwjXTSNQNswUREaEGRJ11p0Y/Y3VQ4DhF5frDLJUQkamcqECAmVEeAAjUmNqtHhboltbchx89esaxEIB8tSr1IB7q38McUYRbpNvaKIR1h17SgtRgZgokkgwAPKp9HGliVZS+EnxSofbEVZJPCJ4CNqyFNWMRZWAUOtqB2haT99O6oVKlSoOYeOGnV4pcNMpzLW+vKJAnUndRgaA1BuYfeBaEFkZnAopAW2ZyoDihodDkKVZTqcwgGRVkcT4T1mOvJ6paj1XWJDTnVn6IKyoA6QVAg75vQ+/+zwWtpRt77rEyElV06C32TJzluACBl7JJMbRlnx83ruPiuspfb5dMePqnme/wr9fD+IBQSbcZlAkDrGpISoIJ9rkpQHrO1YnBL+FHqB2ElS/nGuyEhJObtaaKSYOpBkaVZX5AT1YPUYiYSISm5fBhSSoolTQG4ymTEneNa0vYCg6LZxEpgpGV91QUFTmSAtCVAHQHMBMHkE5s5/iHHhJbL3/AE+Wpxb/ADT3+EJ0YYpd2eIotl9kPLSl1okKHaGi+yYCogg8xEyIrHpfKvyq8lAlSi2kDQSS22AJOg1I1NS2DYJbt41aJQpxsFtLh68rKitKlpCAXAkmQlIHLQxT7pRw4OYxaoLaldYgkBtWRSilKykhYEpIUkGe5PdXpnNLhM5Ozn099bVfdYZetlCVspBW4ltI6xo9pRUlIMHsgqQsSYHZOulblYDiACSbeMxhMrbkkJzxEzOWTH31YD/DwcyhdtfEodGVJuXCAZ0WlWTInLMzIjNp9IB21w+mNWsQkEnS5uDBzhBIPU8wc0jcesebD8Q4870yX2+XS8WvzT3+Fap4fxArCBbjOfo9Y1OyjJGbRPZV2jpKSN9KfcK4reWF005AQXQDlzJUlxBP0gk7bwdwQY2UKNfyIkZZZxJKR2tLh0lKtBlgoEqCSoSmU6iFGVEQ+KcPWzdxYBPXsBxakuG4KjkSkoKYzgCJUv2SRJrXF67j5OT+nN7/AG+Uy49Te57/AAsDpPXnftbdx0tMuqAWoECAc076AmEgE6CTyoSuujlu7u3ba1uQEstIXmUA5CllQLRKSnYJmde41M9N6xmaQNVdUpZH5qFAHn3rGngaDeFsQes+ruEjKhS1JSrcZkxmQqNwRlkcxBGqQU+xyGXDnQ+tpxPyq6S6ykGWkIUkmZg580p1g89oqycGwO3tU5bdpLYO5HtKj6yj2leprHAcbaumwpBhQAzIJ1TPxB5K2NSdB4TXPPEHS3fXJUhkfJm5I+bMrMGILihCf1QDXQ9cs45hrbF7cMIT82h9YAJnTNoCTv60EPdXS1pCVuOLSCSEFaikKO64UTKjzMCsbe0UrYb95+3vNZtIAuQn6ObblUopMuq8wfjVBR0OtraxJoBRAdbVnSNiAkqE95BAI7te80Yf3QT+Wyth33aZ8QEOfjQ10XD/AKyt/BlX7pox6W8PFw7hjCvZVdFSh3hCCoj1AI9agqzCGkqt3gTtlO+up+GgJ8hTjD7JszJphglo4hh6cxKmxtmjUGSqEkQJG8b71GvpcbEzQFK8NSTosx50e2vESxgN2tSyXbZDjGeZMxDSiTurItvU7mapBvFHCYk0T2F+pWC4qhR1Ltur9paU/BughsOs5bZSkx2FGfUH7zRPjeGFZbdCtVIAXt7UBUmPBQGsTl7oqAtpSzbr8cv/AHZP3VPXl2RaNL71wPa/PnUnLyEgQdp3FBDupdQQnMdTHv0q1eiviJ5SjZ3KiohGdlR3hJAU2T4SkjnBVySKpa8xUk+Iop4Qx4jELJRO74T+2FNx5SsH0qbHRNKlSqio7G+cd4gvVJSjO3aONoBJCSUOtBOY6kSdyB6U4ax6/trq1auLq2ujcrUhy2ZbSlbBCSZSoKkgHQlcbeoisH638uYj1GTreof6vPOXN1zWUKy6xMTFOX8Kurl60eGFC0uGXg9cXCVtDrMoOZpORUudadJUdJgyCTVGvGsZxW0t/wAoXLjCUhYzWXVp0SV5QA8CVFca9255RVpAVUzTOIPXfyrEMOedLapt2EPMdU1+eQpcrc/OPu2CTG5w+7ObKFzrmX1xhwFUgISXQB2cvZKURCgFGTJAxxP/AIx2X/Ztf1r1OeIL0ucSWiCBDKVJEbnNbuLJPqqPSoS7ZcRj1ilzNmhBGYgkJL75SDClDQGAAowANeQkMV/xnb8z/wCDVRTvF8exGzKHXrq0UVvpbNg2gFWRaoBQ5IcUvLrqkD4V7xDd4qlN1d9azbtW5WW7dbaF9ahA9tbgVKSvklPMxpvTLHcJvr1vqnMLabvi4n/p6FoCEJQoEOoUFdaeyICDrz30rDHGMQu7sm8sHl2jSpat23WQlwj/ACjxK5V3hGgEx35gsbAb75RbMP5cvWtIcy7xmSFRPPfeq86Zv74w7zd+LFFYtbpyFJbWhSgFD56EtpKAOpyoXlzA5wewpJMKzCBlrvpDtnW3bIO5xK1lIWQSNLcEdlxYAzCfa1KlaDmRt6YsQK74pSRCWi36EpKh+0Ptqa4Lw/5fYJs0pyNJcUu4eIBOfMS222FbKy5CpXJMJElRKYbpHwtsYw02JKX1tqcBPNxzKoCNhlAq7MKwxq3bDTCAhA2A+JJ1J8TUVRBurrDrgtkfOsk5CQY5HQ79WsRI28MyRF8YXfJfZbeR7LqErT5KAP30N9IfC/ytrrG0/PtDs/np3LfnzT46aZjQ70U46pK/kS5KCFLaP1SNVN+RkqHdCh3UFoVzBxbdIcxC7W2ZSX1QYImCJ38ZFdP1zV0hiMVux/tAfelJoBgf30P0qlP8or0+JqKP98j9KpP/ACivT4mgNeirXEmPBhXwFWHxuB8twwnk69/ULqveiX/CTX+7K/5KLemDEBbrw58+ym5IV4BbZST7iTQVDg+MLUy54M66J+qRqSoEakDSTr6GKu8RKxFOcCbi3uN5DaRodNcyYOuu+g12ndIIjeroNDZIVNEeEkqw3Ev0rX+tdqF6uinCrL/qTFHf9tbp/YWD/wD1oI/EHMtgwrmHh/VKFYXV6v8AJ7RKUBPXGFBfaJ7YIKcum2+Y6AejTEn5smkf7QK/4Ipo9dpNq2yAcyVEqMDUSsgTM6ZzpEakzQMFOSaluGX5vLMcxdNf1qYqNbZoh6OcO67FLNHc8Fn/APHLn/JQldV0qVKgpvheDxFeg823f65o/Cii1euVZ81tqlkqHzT6QpYzQAVL1EhAywFHMSIG49xR0WXL949cNOtBK1lac2YKTI1HZHn6VHfyR4h/rTf7Tn4U1Fls8Cq4fuZVktSoCClRbdTn2Cuz1mZJzSYOsd8E0/f64MtrSwSoleaEuToohByEkpzJhUHbaQYoDe6J75IKlXbSQNSSten2U1Z6NbtZhF80f13BPlI19Kah1ZfdK8Q/4x2IO/VtT4HO8dpMeVe4sr/3ob8z/wCEVTjhPoqube8auXn2yG15yE5ipRAIAk+muu1POPOjV+8vFXDTjQSoJ0XmBCkgJkQO4AzRE62t83IbLB6srUCrq3gIBSE9sqyg5SpRJTBgATyjXLi6gRaEnq5JLboAWJJbylzMdNArYkabgUL/AMkeIf603+25+FI9EeIf603+0v8ACmo11Zfcct9d1BX8nOfrAmAlxJy5ASrKok6LJROxidtaBulMku4WFjKo58yYIIlTI2JJH8eVRl/0fvNKyu4natq+qp8g+460/wAC6K3nXW3vltu4hK0lS21Fwwk5soO2vnpNNRLbfLLj10Kx9n8x23HuWlX31aDvFDYPOo3FuAWHb0X6nXEqSpC1J7OQ5I7xIEADenK7vDSrKbm2zbR1qPdvvRD634ibVtQRxrhi7d9GIWYAhwKWDoAoyCf0XASk9ylTz0sBjCmgAUgEHYiscUctW21IuHGkIWkpIcWEggiCNSOVBhwtjgvLdL4TkkxEzBgSJgagkpOm6T51zbj7axf3gczBXyhZ7c5ozaHXWCBp4RXRvCxsm2+ps3m1pBKsod6wyTJOqidSSfWseJeGGr0ZXUtGPZUWyVp/RWlYI8tu+aDl9f8AfH61TuGYc9cPqbYbU4vTRI21OpOyR4kgVZauhJjPn+VvTMxkRH40U4BY2+HlNqi5YS46ZyEAOOGNzLknTuEdwoILo44GuLZ8XNwUoIZLaWwQoycsqURoIy6AEzPKNWv90IyTZ2yu66TP7Cz91Wmmojirh5q+tyw6VBJIUFJiQRzEgjvHkTQcy2bmW2f0PaUgTpAgz3zzO3hO9R4VV3noZajL8qcyzMZR5d8bU9teh6yTGZTi/wBIx+4RQUSg1dGFcLLRw3ctKQQ6+24+UwQZ9psEHUKyIb05GjDD+B7JlSVoYaC0GUq6tMgjYzEz470RZdIoOP3nMzTQ8CfgPxrWhur0xDoUtVrKmn3G0kyEQkhPOBpMUrLoXt0GVPrX4ER8CKCl2rUkVbvQrwa40td6+gplGRkKEEhUFTkchASB3yrlBJzhnB7DAGRLYjmGWwfflmp5tkjdRNBupVjl8aVBlTLEMQS0JP8AHgBTi5dCRuAToJ5nuHf/AGUH8XlUtn6JBHrp93wqVWWL3xeGaShI0CVaTzzQPTfuqGcuo21rK1PWEICST4a/x5mnuK4e2023mHbKoUQTsddPICNudXeuzOt9xBwipamipSpEwlP1Y39+nuqdquLYpB+bUQJ0nQgQO0SPDu7ql7DF30wVKzIzJEK13UBvvIFXRsYVXXFGOXF5cOWNk4WmmdLq5G4UR/Mt/nRueXPaFG2P4iLe2fuD/kmlrjvypJj1igng6wLNmylWri09Y6o7qW521E95kx5AVFNLTgSwQmFMB081OqKyT36nKP1QBTLE+FUWoVdWDyrRxtJUZUotKAEkLCpKR5afmmjIUI9JT0sM24/zh5KVeKEAuKHrlSPWgG7/ABm6xSF3Ky2xAysNynNp7atZgmSBvHMc9X/s/bRHVDzlU/tTm+2nYEKHjpToCgi7DGbvDl9VZvFaXQrKy52gg/6UHkB3nfSc2w2IwJLii7dLXcOq1UpajHkEgxHnNaMKTnfuHjrC+pT4JQBmjzWT+yKmrXYjuNd+PCa3X1PS+nx6ZnlN2ox7hpjQtBTKxqlbaiIPfHsn3T4ijjo94veLvyC+IL2XMw9/pkjcH88DXv750KoGoniUqQ2m5b/nbZaXkHb2T2k+RTMjyq54TW416n02NxuWM1YL+mvGbu3ZZ+T50tKUQ8tBKVbQlAUNUzJM8ykDwNMOJIVmkzM5tQqQdZ5hQO/MGup7i3buGihaQttxOoOxBFUDx5wk7YOzBct16JVz02ST/pEjQE+0BB8PO+RVg9GXSALkJtbpQFwB2FnQPAfBwDcc9xzAseuTiCkhSSd5SoSDIO45pUD6girx6NOPhdpFvcEC5SNDsHQOY5BY5p57jmAVYFKlSoFSpUqBpiyoYdOYohtRzDdPZPaE8xvXPeB8XYm0flSHXnm0rAeS4pS0SrtQRJykyBKUwMw0gCugMfbQq1fS6vI2plYWv6qSkgq9BrVNdHODsovUKFwQCqEpMxcdl2UlMQJb6tesGUnQUF22N0l1tDqZyuIChIgwoAiRyMHat9eAd1e0CpUqVBQPSRxQXMQUoKOW0WEMgHQLSe24R355T5IHfVs2l6zdMNuEBSFpCwDyJHhzGo99c68QNqburkOe0H3DB7isqB9UkH1ot6LuJClXyN06KJW1OwJ1Uj4qHmqpl4XHz3W8l0JGRlASPAR6k86YYtZOPICWxnIVJ25Ajn50860ECfQD76k8M7KVOLhKQNzoABqTJ5RzrE8t3wrxYUjMkgg8wRBHKiPCmc4t2/HOrySc3xCR61ljPGNgMvXtrLagSl1xvIggGJSt0p3O0bjUaEGoyz47sGnCGW3VjLukFaoHJAE5kzzB98adHIQ9JDZVhd6Bv8nWfckk/YDUbhD4cYZWkylbaVDyKQaJ7O7Zu2SpBC21gpIII70qQpKgClQMgpIBFVhwjdGyeXhNyqFtKJtlqP8AOtKJKQD9Ya6eBA9k0UaUD9JKSHsPX9EOOJPmpvs/A0cioHpAwb5TYuBKglxoh5tRgAKRrudBIzJ17xQCKt0+f3U6SKh8AxRNyM4gKSAFI5pPf+ieR+8Gp1lNBAcNnR9J3TcuA+qswPuNTdtur0qCxhXyO664/wAxcgBX5q06Zo7oIk+PhqQWieyDIM6yOc16OPLcfZ9LyTLjk+sbwmozilQTZ3BP+iUPeIH2kVNNImoj5N+UL1qwbGZpCw7dq+iEJMhrxKlQP/RUXK6jXPyTDC7XHgrRTbspVulpAPmEgGssVw5u4aWy8kKQsQQfiO4jvp3XLDXGuILdeUq7uErLhJSlxaUjWICZgARERXmfESXHPDj2G3BDkuWznsrA1HLN+mBuOdQzBcQ6jqCVOSFNluST3KESfwq8uDLlvFsLDd184tBLbhO+Yapc8ykpM980zsejkWLKzbuKUszJgAxyyjUaGTsd+Y7JJoW8GXlw7ZtLu0pS8ZCgnYwSAfAkRI75qboM4Ndd6whCF9SZLi1nQqAA7AmOWuWE90zNBnShxE89efJGVqQhr2sqinOuOcHUDYA6SCe6JFq5qVUWOAsW+qv+nR/5qXDmM3WHXyW7hayhSsjral5gNYzDUgEbyNwI56UWxxqkGyeSVFOZBEpgnviDvO0eNV43gDVshm8acWUJVbvKIUCEp+cBKTHsxlnmRpNWXfpDjzbZEpAKlDkQBEH1KT6VHsYC2hhyzaEISwlDeYkxCnCmeZgx7qAjBr2obhAu/JGkviHUpyqEgxHsgkaE5MsxpM1M0CpUqVBTPGfBxu4dbYukXAEH5tORY5BXakEfWA20IOkBTXAOJhYItnElKgoLjYgyCI1nzrpomodXFFoNngod6ErWPehJFBAYRia2W20rsL11xKAFOFCO2oDVWXPCZOsDan7/ABGtaVIXht4UqBSoFCNQRBHt91N8Y4rt1ktC7dt05QetQ0rMST7KesaUkAAGdPpJg6GmLWN2Y/8AjF36pb+BtopoDBZxVIWkN37iT7BW4qQJMSCvUxGpJ231rLq8XJV1TF0gn2SpwpSkd+VK9TMzIOkCiocVspUMuKJUOYdtionu1aDce6pSz43tFISpS1JVGo6l6JG8Hq9ROx5iKqaaOCsIuGVLduHlrW8Ap1HVIQguBKEdYI1nKgA7A7wDTnjbg23xFoIeBStGrbqIzIProUnSUnu5EAiVwzGGLiepdSsp3A3HmDqKfKUBuYqKo93BuI7VRbYUblsaJUrqiSPHrJUPLMafYLwPid8sHF7h1DSTPUtlAC/A9XAA5bExOoq2LnEmWzlW4lKonLOsa6xvGh18KqfFuNcSuMSLFks21t7IdfZAToCVOkuoBAJ0CZ1gbSYCW416LWnIfw+bZ9CYCW/YWANARIynQSRM8wTrQOjh3iIdkNfryx+H3UQcZ8TYjYJt8uIofU8FqUpDLIQAkpACYSSTJVJn6OwqwMGx7q8MZvL1yCWUuLUQBJWAQkJSAJ1AAHOgFOFOixOUu4mtdy8tMZFEhLciDlgyVDWCIA5AHWhvF+jnEbNwjDXHHWCZCF9XKfDtHKeeoCac3XSdeXDpFulLaJ0Gm35yiCSfBMROu1TVj0g3DMfKUtuJJAGXsKk+JOUjzjzosyuN3AzYcG45crDdws2zR9pSQ3PoEEEz4qjwNW7wpwyxYM9UwDJ1W4rVbivrKPPy2FVviXSo/mlCSAN0tN9ZHgVqgE+QHpRTwF0is36uqJyvDllKZjwkxpOxOx20BW7XLK5d7RzVJcV9D6rm7dfsbhpKHFEqSSTlWTKgMuwnWPGrixQSjLyUpKT5FQkeoketQHGGOCxXZlLQV1z4YMHLCSlXgZhQSQNNjtJoyiOi/hBWFIeFzcIU48pOmbQBIMQFaySoz6VYM1Q/TYywcSZKubaRcaEwjPoRA1VlUrQfVFXZcPD5OpaDp1ZUkjTTLI8qE73R2BVM8R8GX35Qefaty42pZUkhSBMnNzUCIJjUcqtHhVwqtWySToRJJJgKUBqdToKWNuqEAGND8R/bUl7bayx6crj9kKeJsQ/+UOf/ALDf4UC4xwpf3lz1yrVTQWuVArQrKCTJBB1geE+FXBhjhU2CTJk/E1lfvBDalHkKrJphfbcdd8QgeQ1PxA/Vrdb/AM85+gn95yvcIZyMoB3IzHzV2j9prG2Pz7n6Cf3l0CtBlcWnke0PvP2x+rT6mN72VoX4wf48AVn0p9QKlSpUA30g4ohixuJcSlamylAKgCoq7MJG5OvKqjw3FihtAHID+2nfTHjZdv020DIwkeeZSQST5JIAHie+hBi9KAARI5EfhVgMTj3ekGkrHUgSWx7qFRijdL8pN/WFUFSceR9QD0rNWODkE0GLxNA5/CvDi4PJRPkKApwrHupxK3dKghE5XI+qoEGY3GxjvSKtPjuxbft2wsEpDgUIKk/RVHskHntXO128VArPLYVe2B3SnsIslrJUooSCTuSEqTJ91Sin+Mc7C0lpxfWIeLaVKWVEo6pCspJ9pKdAAdqa2zj7qVSoiAToTyE/xFSfGbGe5jMkHrnCkKUE5oS0kgFUCdtCRWy3s3G0KKwlIyncgk6bBKZPvgeNQD+LgquF27Z7KHSy0nkIyt6eKlCT3kk86PemvEiHLewbMIZbSSORWRlSD+igf94aDMLKfyyjNt+URPn8oH3xUn0krnGblKtfnGx6dU1+NA/wGwDTQ7yOe8b+87nxPgKj8Zd63rEA66pR4EfS888D9TxoioHsXSoZpgqWde7X8ZoJ23UnKNxp7MER4aJIqOskLtHg62slefrVECOyNAjeTJJPpRV1Y7qi8fSMqe/X3aT8E0F6G6DrLLqdlltQ9SDQh0ub4aOZxBsD1Ch99TXCoP5Nsp3ytfdH2VCdLB+cwof/AHBr94fjQV900g/lFwiNEJJ8glv7datbDMWH5J612EhLGTSd8oSnxkkgR3mqi6b31i/dy7ZcqvLq2j8DW7i/GXixb4a0FJyp657vJzEtJ05ZQHP1kHlU7t7xmrPP1XFwFeIcs0hKgShSkrjkcxVB/VUk+ShW7G1fOR+b95qnei3iB6zvUsvKUWbpQScx9lwwEL175Sg+afq1b2Lglw+EAeUAx9pqa1NGWfVncr9e6QwRUt/rGteNdottfXXr5Df7J91bsHEN+ppvbnrLpauTaco8z+Bziqwlqj7Y/wDSHP0B+8qpCgTCeIG7nGVNsqVDDL6HRplKg60kaA6xlXBjn4mqDHEm5bV4a+7f3iR61stHMyEk7xr5jQ/bNbTTHCjGdv6p+zb7SCfWgf0qVKg5y6UwRjNxPPJH9Cj7waHnDrVv9LXA5fJv2lnrGmwFNBBV1gB9pJBkKAJ0gyEjbnTTr4BIOh8dKDOa1qNYG4T3j31gbhPePfVGya2oGlNflCe8e+s03SfrD30GeIaNHzFX1gDBbwexSrQ9WgmeWZJV99V10Y8Ns376hctFxhKMwMqCc4UmEykjN2c/Z/sq7McwpTzaENuBnKqZCM2kEQkSANxvI02qDnXpIaCn0J73Hj9qPwrDh21A0kCrcu+iO2VkKHnQpIMqcCHSSSVFQC05UEk6wmNBp31K5bXNvefJb5LgAzCWbZhRVAOVTQLfbSTGvjyIig13zClYiUNjtqukqb83ChxP2qFFvTlgimrxF2kdl5IkxstAjXzT1cfoq7qluiTg543Bv7xpbeQQwhwQqYylZSQCkJR2U6DckAACrQ4gwVq8YWw8mUqGh5pPJQ7iP7KCnLZ4LQlY2UAR6iaEV2nVdck6BslY/QOs/ZHrRJfYK9hq1NT8pZklJQCFo8ClW8+BP21EYisXRSlDbiCNFF1JQkpkEoO5MxG3OgxGMOESpRHgAkR9leYSld8+200VqzkoMg9hQykk9ycsk/o1mu1uHDlbSNf9mkEfrJTHqDPjVrdF3AQsEqecIU85yGyAfio8z4UBg7bpbbabTolCm0jyBAH2UF9Kp+fwkf8A17f7yPxoi4gu3BcMMpUG21IW6pwgGVNlvK3roJzKUecIMRqQJdLj0LwtwwIuQrfSZbMUFf8ATl/hB2O4T/RN/dFNuKLwsYm+qNFNtZT3pLDcEeGkelPemRn/AK0WlX+UGZPiOpQmR+slQ9KIemXhYJtre9SQlxptDLqTpmT9FQHehRM+CvzaAJTfm4u7bIO0XWkiO/OkA/Cr+xj21eaf+Wqj6DuHUv3SrpaklNt7CQZzLUD2vJA/4lD6tWxjDyOsWCoDYb7aCpQ9F8li1deWQEtpUsk8gkTy8qEejVi/esUuuv6uqKpUntRtMogmSCqSfpVJcRMOXOF3DFuErdX83lnbMpIUT5Jk+MUVYXZJYZbZR7LaAkeQEUEb+QFK/nLhavIAfarMa1tcKNpUtQcc7UbmYjwXKefICiClVEIcHdT7D/oQof1agPsoGucZurbHmGbl+Ld1EJ07KioZAkkAEq6zq9TtMczNqUDdJnDi31Wl0y31jtq+lWQR2kFaCoGd4yz4a0BzSpUqDXcbGhPFN6VKgg36bUqVBm3UhZb0qVQFuEbVK0qVUKse6lSoMqVKlQYr2pvSpUG5qtlKlQQnE3so/SrzH/Za8/wrylQZYr/OM1MO7GlSoMLX2agOJfbTSpVKJfBv5pNPqVKqFSpUqBUqVKg8pUqVB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSEhMWFRUVFxcVFxUVFhgXFRUXFhYWFhcXFhUYHSggGRolHhcVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFxAQFy0lHSUtLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAgH/xABKEAABAwEDBgcLCQcEAwAAAAABAAIDEQQSIQUGMUFRgRMiYXGRofAHFzJSVHSxs8HR0xQjMzRCcpKTlENTYoKj4fEkg6LCRLLS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAEEAwL/xAAeEQEBAQEAAgIDAAAAAAAAAAAAAQIRA1ExQQQSIv/aAAwDAQACEQMRAD8AnBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBfC5fVHPd1tLo7BEWPcytpY0lri2reDmNDTSKgGnIEEhPmaNLgOcgLz8rj8dv4h71AIyxZXWC4RSYkcdzMTjp4QV9KxlrmvPcWzNoSSPnQMCcMKqDpEWqPx2/iCqB42rmWp/fN/NHvV1YLU5ri3hKjbeLgD00/wAKjot1tjBumRgOy8K9FV8jt0TvBkYeZzT7VzjZGSQvHBvjBFXcK+IEH7znShtcdQGtWtnnc9954c0h16ogbCCKUpgSLuNdGzFB038oZ47ekL02Vp0EHeuYrTK90ho8AADC8WjkOJxJoa8wVL5Q4VpITTA0cadNUHUl4bQl8bQoOyhmi1kUrmWuSR8UTpHBrmaWtqWuiv8ACR0OBJBprAVu7Nhvyl1gFqnNrbHfrT/T3hGJbtb18NoQL+iupQTzeG0dKXhtCg7J2ZQn4F0dskc2SFs0jMOGibI0ljy3hKOjJDmkg4GmrEY3JeQ7NPZzaRbpmMiP+oa8ASRhzXcGWtDzfvuAaN+xB0HfG0JeG0Lk6e1EE3HylteLUm+RXCoBIrzFI5ZSKlz2jRV7nN6Kmp3IOsb42jpXy+NoXMuTMmTzYxttUo8aMFkR/wB+ZzW9SzdnzVtNONEG8ktuc4j8mGnWg6AvjaOlLw2hQDLmpPTwI/5LbOD/AFISFiLdm9amCvB2ocscjLUOekRa8D+VB0pfG0JfG0dK5KlfIKgSOfTS1rn3xzxmjh0K2Nok0l0g1YucPag6+vjaOlL42jpXH/yh/jv/ABu96u8k2ea0zRwRvcXyvaxtXupUnScdAFSeQIOtb42jpS+No6Vz4zNezmO0Si12q5ZSGySYXZsHD5kDwOPdwcXcVw0VUfWiUk+E4463ElUdi1X1c4ZEncIrPRzh/qIhg4j9o1dHoCIiClNOG6VGnd5lDsnwgeVM9TOpGtWDmuoSBsBNNwxUZ93SYPsUNA760w4tcP2M2sgKCHrFBM36OjgdLTQtP8rtfKMVIOatmBhdK65G9v7MAC9SpqC8u6gtYyREcPcrrKNsljHFdupiefWiNhtZs74WWiaF7y5zmCMSNBbdOmjWNwwGJGta5aoY3SF0TZYmECrCwPoQKVvXhQaMKLDOy1OD4fV7veqbsszUNX0ptp6EF9bRIYy1rXOAHilpOvwcdu1Y2CW0Xm0ifea0tvOY81BcDXVooqTsvy+OegKmMqSnQ80rsCDOW9j2Na6O66R/hlwHEGwB2AxptKx2TY3NDmkXjXGh2jlVjaJHE4k6O2hZzNORrXtLgKEkVJoG8pxGGJCC9tmcdskYWOmkLXCjgXCrh4pOkjkrRW78v23g+B4eTg7ty7fxueJe03eStEt4YJHcGatrgex371auQVH5athcx5nkvRgtY6+bzWkULQdhwwVKy5TtMcboY5Htjk8KNrqNfUBuLRpqAAvBC3vNLNPAySggtoHkUrHeoGxMJw4Z1RV2hgPLUla5m/mhaLS6gaABS+53gM5D4z6Y3RyVpWqkHJWZtms1HFvDSj9pKAafcZ4LRs0nlK3HJfBGMMiYGMaOKG4tIqQSCQCTUOrXGvStGzzz7gspMcQ4eXEUBpG0jTefrI2DqQZ6RxOmpVOa0sbS9dGH2iBq5TRQxlTOm2Wit+cxtP2IuI0bxxjvKwjomk1PGJ1mpJ3lOHU+jKELtBYfuvaT1L5aHA0uims9XKoCMLPFHQr6w5RnhPzM72fw3iW/gNR1Jw6mDKWSobSKTxiTY44SN+7IKOG4rRs4MxJY6vgJmYKkg04Zo5aYSjlFDyK7zfz7cTctLQTovsFDzlmvd0KSbHa43wh7KOaMbzacbk59WJRXPDo3DA0VSyTSRPbJG649hDmuBoWuBqCFL2d2Z8dpDpYWhsgBc4MxDqGjnNFBxgfCbrrUY6YktEDo3FjxRw3gg6CDrB0hEZmXPG2uwdIy5dc0x8HGInB9L96IMuuJIBqRVa5PUmppp1YdVFWVKbVzoNtyXPdhgJFGtnicXVGAD2k4adAK6KsmWoZaXH1vaKgivNULnCP6iPvhTRk+0QTQQts8YD6N8GlRQUJc4aRXGpRG7VRU6HaehFVVVGnd7+owedM9TOpLUa93n6jB50z1M6UR9kBgu15Fb5UhqT261kMgt+bKTx11INWfYlSksAIukexbDJCqT4eTf21cqiNbOSm/xdI9yt5rPcIAGFecnetmMdeXq6QsTlQcYdvSisbajxtyyOS/o95WNtI45WSyZ4G8oLoqmSvTiqUjqAnZj0IM7mfk109oYGAF96jKirWkCrpXDWGN41Nbi0VBU9WbJcTIBZw2sYFDU4uJN4ucRiXF3GJ01xUY9yOzXIXWl3hSEsZyRtPGI2Xn13Matkz5zq+S2VxY6kklWMOtopx37ho5S1BrHdEzvZAH2WyEgeBJIHEueRpiY8moaMbzhzDWomc4uNSanRyAbAF9nmLzeO4eK33q34Yr0i5axeqK14c7fQvvyg7fQguCF8LFb8O7anDnb6EFV7O2sLY80c5X2Z913zkb8Hxk8WRpwPM+mg9K1bhztXpjq9tB2qDqDIZhfG2aAkteKhxLnO5iXEkUOrao17rebIbS0RDSTo1HFzmcxxcNhDhhUK37lOcxY82d54smgeLIBpGwOHWApAy61tohfC7Q8UB2O0tduIB3KVXOoNVSn1c6r2iIse5pFCHOaRsc0kOHSqE2rnQbpkUfMwecQ+sYuk7gXNuQvorP5xD6xi6TVBERAUa93r6jB50z1M6kpRr3evqMHnTPUzoNGzf+jPbUq0ox7HFW+bz/AJunMrqQYnt0oLN7eft21qldr2r6Crwx+z+3+F5dTV29/UNKCxfHz7/dsWBys3jDtr6Fs0tNvu3cvKtcyy7jhBh7R4ZWRyd4G8rHz+GVfZPPE3lQXDirLKUlGUGkkD2+xXjirWRt6WBp0GVgPMXtHtQTJkiMQQRQj9mxrd4Aqemqj7ul5QMk4jrgwBvTR7umrPwrfJJMd6ivO2StrkOwv6nFv/VIViSMCVsnc+s8bjaDJGyS6Irt9ocBUyVoDo0DoWuuHF3LYswXUFp5ofTKuvjn9x57xn7XZoPJoPymrFzxRfuIfywr+0yLGTOW64z6cdaW0jI/3EP4P7qg4M/cxfg/uqkjlRcVn148+nHWqoW2NhjkIjYCGggtbQg32D0ErE2ZtQVl7T9FL90esjWJsmgrNqc1Y7eC25q4sVsMTxIK1FDhpq01BG8KbILfwkbZBoe0O6QCoOeNPP7ApUzSkrY4K6mU6CQpWiNJz8sty1yOGh4jl/ECx3/Jlf5lrc2pbr3RmcaM6zE8fhlhP/YrSZdAUG7ZC+is/nEPrGrpNc2ZB+is/nEPrGrpNUEREBRr3evqMHnTPUzqSlGnd6+owedM9TOg0LN93FA5lk7QO2nQsPkF2A7adPt6FnLTo7Y0UFk52Ht5uXE6+pW7j2Gqp0cbXpXqU7+uv9lbOkpyc2HRjgg8zvw/z0YYHdsWuZTfWQcm019qzlqk7a/atdkxkx1bVRaz4PKvbAeJvKsrV9IVd2A8TeVBcOVtM+7JC7U2Vh6HNPsVdxVpbmVbTf7PagmF7VFOckVLZaB/GT+MB/8A2Uq5Ck4eCKXx2NJ5HUo4biCtI7pGTDHaWS04srKV/ijwP/Et6CkK1N3g7lmsy3UFo5ofTKsK7QVlM1JmN4YPe1l4R0Lq0N0vroB2hdMXmpXjfwzs8isZXK7kdF5TD0yf/Ct3tj8oh/qfDWu+bHtl1Vm8qk5Xboo/KIf6vw14dBH5RD/V+GuWvLln1dfUqxtH0cv3B6yNYux61mbe1jYpKSseS0ABokr4bD9pgGgHWsNZDgVnt7q1r/Gl/W9n29kae2qilbNizltjgB/dg9NT7VGmT7C6aRkLfCkcG4cpxO7E7lNpsYaA1owaA0bhQKVqiM+6O/jxt2ROP45YgP8A0K0uXUtgz5tfCWyUDQy7EP8AbBLv+b3Dctfm1c6g3XIX0dn84h9Y1dKLmvIX0dn84h9Y1dKKgiIgKNO739Rg86Z6mdSWo07vn1GDzpnqZ0EdZA0Dt21LPz6O3UFr+QDgO3bWthtR4tTs5sOjWcEGEnfTV1+2upWL5cfdQegYDeq1rdidH9sTu5lj3yV/zXfhuQLRJ2x9J5QsRG7jnt1DBXszu2GPOCsdE7jqIpWr6Qq7sJ4u8qztP0hVzYvB3oqu5y+NiLsNS8uK9Qua57I34t4xLQaXyA0hrqYlvhGnKgkruTWpr43QFwNC57MRTSBI0U/iIfy8IdQWw50ZKiyhZnRRfSNHDQkil4jCoOwhwadBF8cii7IuUDZLS2RpDGOLcacSOQC60keI4EsdyHVpUz5ENmZD8oYHNFLhaXFzo8R80BXDG6MNPFxpRBzxJGQS1wIIJBB0gjAgjUVUjDQFKWf+ajLXetVlFJaVkjwpKMReaQaXxQg4405qxWXubxXh1G3m3SbpacdIIOh2JGuhFRpXqIq3m8q9X28vQqbYq+Cb3FLjQE3QKk1w1AV2U1rzTsMUFa83lXm+3lVMgr7wRpU6K0rjStK6RyIPZc04Yq3bHjQbekr3pNG482greMxcyjP8/PVsDdJ1yfwR85wvctBtQZruRZqHG2ytIFCyEEadT3832RvW6ZyPFngfLQVAoweM8+COauJ5ASs1kq2xPHBxtuBjRRnFoGircLpIwpRRT3Xc6QQIoyDfBuU1MODped3gt/hvEaaLzVRXaH3nuNa4nHbjid+lUZtXOvbG0C8zaudBumQvo7P5xD6xq6UXNWQvo7P5xD6xi6VVBERAUad3z6jB50z1M6ktRp3e/qMHnTPUzpRHOQxgPd22FZm3Po3thuKxGQG4D24U7FX+UX+7lA9m5EYS2u7enTp2LHmTHTjsJqd/Wri2v7bNArjpVg2TtVRSV+HNs105tCx8TuOrx7t/LifQrFnhIPk545VzZfB3q1l8Mq5s3g70FQlUZmE0I0jEbtCqErySiElue9t1w5DQYu6cG8/UtnzVzsfZhwcovxuAa5tTxmjwReJwe37Ltx1EateXy8nFT1k62wSR8JZ3XmnA6atp9kg+CRXQsFnBkKC0m89t1/7xlA/DxtThz47CFFmTcqTWZ/CQPLTShacWOGxzdfpGohbvkzPqGTizjgX7TjGT977O/pKgxtuzIkBrGWyDTgQHb2OOnkBKxU+RLVGRVr20BAvxvFAa1Aq2lOM44bSVJDHhwDmkOB0FpBB3he45HN8FxHMSF66cRfBkq0OoGYkGouNeXA4YgtbXUOaiydjzHtLzVzCwbZPm+p3GI5mqQ/lLzgXuPO4le4k6cYzN/MuCIgy/Ouw4oBEe+uL99ByKQIgxzCxwFylKaAB7AFomUs77LZqh0l94/Zx0c6uwmtG/zELQ848/Z7VVjfm4vEBrX77vtc2jkOlQbvnVnhZrKxzLPx74oeMSZ9OFdUI1n7WgYeFEdrtUk0jppXXnvNSfcNQGgDkVNxLiXOJc46ziszZLVZmMbWO+9rTpa2jnOIJqXA4NxAqD1oMPRU5tS2CXKFlJiPAjDF4a1rQPB1aZNB0mnNUgYbKcgc+rcRxRW41lSGgF1xuDakE0G1BteQvo7P5zD6xq6WK5pyCPm7P5xD6xq6WVBERAUd93Oyufk4PaCRDPHI+mpt2SOvMC9u5SIvEsYcC1wBBBBBFQQdIIOkIOX8l5ajYNfQVd2rK8bhppr14bdHtU2y9zfJbtNjjH3S9o6GuCpO7mGSj/AOIN0ko9D1Bz7arawnAjo9CtvlTdvprpXQ/epyT5L/Wn+IqU3clyU6lLO5tNk02PPV6Dnp9pbTT/AG6lbxSC9p7bl0iO5TknyU/nz/EXzvTZI8lP59o+Ig5rmfxiQjJyB/n3rpPvTZI8lP6i0fETvTZI8lP59o+Ig5t+UHtX3pw55Ov3rpLvTZI8lP59o+InelyR5Kf1Fo+IiObeHPavvXzhzsHX710n3pckeSn9RaPiJ3pckeSn9RaPiIObOGOwdfvQzHYOv3rpPvS5I8lP6i0fETvS5I8lP59o+IiucLNbHRmrHOYdsb3MPUVlIs67UP28m9sT+tzKqe+9NkjyU/qLR8RO9LkjyU/n2j4iCCDnfa/KH7ooB1hix1tyxNLhJLK8bHSG7+BtAuiO9LkjyU/qLR8RO9LkjyU/n2j4iDmq/qoKbBUD0r6JOQdfvXSnemyR5Kf1Fo+InelyR5Kfz7R8RBzXwp2Dr96+8Mdg6/euk+9LkjyU/qLR8RO9NkjyU/n2j4iDmzhjsHX718dJXUOtdKd6XJHkp/UWj4i+juTZI8lP59o+IghHNW3332ezhpv/ACiEtpje+cbXmIGPMCupFreQsxbBYn8LZrO1j8Rfc58jgDpumRxu7lsioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhITExMVFRUXGBkYGBgVGBgYFRcbFhUYFhgYGBcYHyogGBolHxUXITElJSkrLi4uGB8zODMsNygtLisBCgoKDQ0OFw8QGi4fFR0rKzYrLisrNystKy0tLTcwNysuNCsrLy0rLSs3Ky0tKy0rNDEtNy0rLSsrKy0tKzctLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAAcBAAAAAAAAAAAAAAAAAgMEBQYHCAH/xABKEAABAwEEAwoIDAUFAQEBAAABAAIRAwQSITEFQVEGBxMiYXGBkaHwFTJSVJOxwdEUFiMlQmJykrPS4fEzNUNTdDRzgqKywmQk/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAECAwQF/8QAIREBAQACAQQCAwAAAAAAAAAAAAECEQMSIUFRBDEyUpH/2gAMAwEAAhEDEQA/AN4oiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLxzgBJMDlVh3YboBZKRg/KOHFGz63unXtgrTdstz6v8Qh4JmHw4TOB40448pQdAU6rXCWkEbQQR2KNc70LS6mC2nDAcYaA0TlMN14DFTfCVby3daDoNS/hDL12829skT1Ln/wpW8sqle8F/CFjC+ZvljbxIiDeiZGCDo5FprchutfQrjhXudTdg4Ekxyjlx9mvDcdOoHAOaQQQCCMiDiCEESIiAiIgIiICIiAiIgIi11vobqXUyyyWd9VtokPcaeHELXAC8TnMHBBsVFzmdNaVpmalqtLR/uT2Soqu7K0kYaRqzjhFTZGYZyH2IOhbTaG02OqPcGsY0uc5xhrWtEkk6gAFgOnN9mzWeo5jKbq7Bdh9NzIdInizmBMHEYytTaU3SWyqHM8IPdTeC1zHmsGua4QQQGHlCs9dsAXXtO0DhMMI+kzlQb20HvrWS0VGse11nDml3CVnU202kfRc69AcdSxDdtvp2hlqqMsdZnAiA1wY116BDiC4GReBgjAiCJla2dRDmQX073LwurmplU9SwkhvytOQIP8Xb/tYYQg2JovfK0k7xqzHSPpU2bNV0BVlbfG0gHQKlL0Y2j3rX+ii2l45a8bGue09tAqpbaqd+XAOb5N94OrWLPyBBftKb6ek2HCtTHIKTCO0LZ24HdfUr6M+F2stLw97eILt66YaImAeyMTAkrQelrO2q/5ItY05Nc57zJ5RRarxo/dAaNlZZTLQ1zncXKXkGeM6SSI1CBgAMSQyTdFpl1pque4zs2DmnIDD9zKtLnd+/MrUdLs2u6h708L08PG6ggurnd+/SvCe/fNWzwuz63UPenhdn1uoe9BcSY7+1Qyrf4WZ9bqHvXnhZn1uoZ9aIry7k7+5bO3s91MxZap/wBtx1nZPLq5T9YAahdpany9X6pS001jmvaXAjLCPaqrqZc8aV32tJtr1WNqUWta97QBSBwa4gYuJnJZPYN+CpNMPoM4MXA+oXODyC4hzmtDSCRddrAJGqVqLSNA1K1SoDTaHOc66HPMSSYlzZUGyrHvlaQLJNWkTH9sbHbOZRVd8rSEGKlLX/TE4BYRZrTTbTu3JdGLuFga9XA8p161G20Ui03m8Y6xUwx5OBQZZZ98/SON6rTOf9JurmW6dz1tdXstmrPi9UpU3uu4Nl7A4wDqxXLBvg8V7QPfzsWQaN0fVpOpVhXfTexzXCG1TF0jW1uIIGWUGEHS6LENGb5Oj69anQbUeKlR11ofTe0EnIXogTyrL0BERAWkt8J3z0eSnT9UrdVWs1vjOA5yB61pLd6Z0y4jIsYAdRhgBjmKCi3SnirX36+tZ9ulPFWABSD2VEF5CVKZD3NmLpAmJnow27VQleyoTTGPyhwn+mNRjy0pt44ZOZIvRGQnxcfWgjvJeUIKulj0U19n4Ul4ccWkAFmcQVLZPsUdjxe3r+6C72Khtbpe7ZJA5hgOwKtpB1N7tTmm7th18D2O6lE7RLB/VP3R71Ra1nrLNZxatH0i2mA+jRc9hs9EteXMfxnVib8kgYRBgbViTrBTH9U/dHvUh1Cl/cP3B70GU1dD/JWVooHhHWqpeApm+aTajW4iJ4MSBJwxV2paLs7rRTHBUuDNuqs4rGmbtnltIjLg5Dic8QMMSRgc05nhnzETGMbM8lTuNEf1D91vvQZbYqNKo22m6x3B1bG1pNClSuB9re17QKZIILQAXGCRgRgq9mgWm06QomgGCoeDs7nMutY5zapa6mSIi81o4u1YK1lE/wBR33R71E2z0tTz9wewoMk3e2aiw2bgKbWNcx/igC/cqFgcYzJDZ6Viaq22WlqqH7qmNsNP+6fuj3oJtiM0iNl4dV1/sqKQVVUaAZAa+8HOAOERIc2c9jj2KdovRoqsL3PFMAgXnxcM3eKMZL8SYiIzLUFvC9Cutn0bTNZtN73NDnhgEDhGkloDnibobiTg46lP0XoanXcQH1GtvBoJpl2eZJbgI5SMEFjK2HU/h9HsWM1tAtFNzr7sKQqX7reBJMfJBwdN7GOcHBZNWPyfR7EGN7mf5tYv8in/AOl02uY9y5+dbET/AH2HqMrptrgciCg9REQYTbLLTtPwp9WqQ9jnBjJjxRhh9KThgtfbq6p8JFsYNdUIO29UIP8A5C21pbcrQruLzfY4+MWGA7nBBC0/u/r8FpN7G8cU4mcDeqAVHZZjjDvigk7pXYLAmuWU6X0iagPFjpJ9ixwWWBi49LXKQSryjtFQPJN264xJaXYwAJgkjVsUZsw1PB6D69vIvPg48sdRCoprn1ndnuU6k4NxiXYw4l0icMgYnnCiNAeW3qd7sEFL6zf+2PYgltVSLTFPgxeDZDovuuSDncmNXWpfA/Wb2+wLx1Plb2+5B6XRTqO1ktAOub0+qVRGq7aesqfVf8nG15P3WgD/ANO6lU6G0O60HyaYPGd/8t2n1a9QIUdlo1KrgxjS5x1D35DnKz7c/vcMdDrTVJ+pSwHTUcMeYAc6rdBWGjRIDWhonWcTzl2cYHHDBZLZawa4mWhpOeADzrc1o27BMLNqxPsG4vR9McWyUnctRvCnrqSro3RdBohtCkBsbTYB1AK1W3djY6GFSu0EZtEuf0sYCR0wrZU3zrFqFZ3LwZHrcCpqruLrpDQNkf49loE7TSZPXErF9I7hrE+bjXUTtpuJH3HyI5AQrgN8Gw1ML7mk+U17R94hzR1hTfC1F4BbUaQcjIg8zgbp6wnc7Nbad3JVrOC5pFWn5TAQ5v2qZxHOC4CMSFjwcf1W57VduapkZwHjGSZ8Y3soOUzksQ0zuaFUF9IBtTOMmv8AY13Lkde1alSsPsdQ32jbhjtIw7YUbnYnvrVOZY7EEOacQRBBacQRqMhVRpGXARg4gTO3DIbFUeShKiFI7W9pHYF7wJ2jtx7EEslbCrH5Po9iwA0frDqI9YCyirpklt3g4MeUfyoKbcrVu6SocrwObGZ7Fuq1WV1KbUyobxrQWbAahaQOUDGI1bM9H7nKxbb7M6BxqtNkZnjvDZGUxK6CpbmG8K6pUqOfecXFuTZmYzy5EFw8IfVRV6IC553yXfO1r56f4FNdDLnTfLd87Wv7VP8AApoLWcYz9f7qFlhGOUjMYyNmAcbvTyqGcFW2KpMA4nUIIHVexjkwQWa0WS7sw5Rl2yMFS3e+od+XasmtYDsCY69vMCP1VjtlCDIHUQenAyEFID3w9SB3fCP0SdWXs7V4e8RsywKCICY9hk9CgeY2dM/uV6eX2e1SqzjBjPUIjPmQVGjtHOrvp0xgAy893ktc4vJ5+O1o5SNSzyjZ202ta1t1oEAbB7TrJ1kqm0Do8UqUxxqhDj9gCKTfuw7neVHprSAoUy4NF4mGDUXEeMZ1ACeoa1m27mvpuTHpu738KTTWmhQ4jAHVYmDi2mDkXDW45hvSdhxR9squLnGo+XYOcXGXAZDDIcgwUlz5JJJOJJJzJOJJ5SpD3ytMI77RkE4Y7ApaII+F2jqUVGsWklji0nODE8+1Sl4QgvehdPPowx8vpZXfpM5aZOr6pw2Rmti6PLajWvYQ5rhIIyI9h5NRWoGu2rJtxWmzQqik8/JVDH2HnAOGwHI9B1IL3u53Oh7DaaY47B8oB9NgHjfaaM9rRyBYW12ucw05xkLuBymWErdbAtU7pdF/BrQ5gwYZdT+w6CB0E1G/8Ugtt79yfaMP3UWOvtGHNKlzydE59EL0DvqQRjvPeQq0HCAOgHZ06lRT+mXYB71VkYcmvo5OrDFUTNAY26xZ/wCpobf7zdq6lXLe53/X2L/JofjNXUigIiIC5y3zP5tbPtU/waa6NXOW+f8Aza1/ap/gU0FpbkPepLn3Tyc2HSAptN2H65qltB74+zUgratXAHHp/aVT2jjNy745qUanE7+wetesPF1dPYEFEc+46sV4e+c9oR4/YHD1Y9a8u949iD0HZ2+z9VN0bZuEtFCliL1Rs4DAA3ieoFSXd+8q47kwDbKZOTWVTnl8m5s/9kGePMkmNeWzkWDbqrXfrloypi4Oc8Z59Q/4rYJs5hpIIDoiY18mbTyGD1FattrpqvJ1ve7reVIKWsdSull0CxzATrVofmVltg/ht5l6/iYY552ZTw7cOMyy1Vu+LzO8qE7n2bfWr2oXL234/H6d7xYelkOgWbfWpNTQzRr9avrlS11yy4MJ4efPGRjdos9wwOdM1P0j43R7SqdmRXz8pq1ybf3IaTNezMcfGHFdyluE9Oatm+NZppUaozZUuk45PBjLGAR/2VHvcVoo1pyFT1sartu0xsdcEEFoY6DGqq3EEGDr1rn5Vrjq77V4O5wPbrXp7efFedU8wGrkwWkRDvsVbGH7dhmYVF374BVnfV0zrVE3c86LfYv8mh+KxdSrlvcwfnCw/wCTQ/FaupFAREQFzfvmH52tn2mfgUl0gubd80/O1t+2z8CmgtDDh392SprU7vj6ip7Dhy9vTrVNaens7exB4TxQp1N3FOXVKku8Ud/3U2llr9qClqc47Y6oUHJHfpUVTP35qHLvggK4blnxbKQP0mvaelhMdnare494XlmtHBVaVTyHgnmnHsKDcBtIN2BGILjtIIxO0wOQY5LW26qjctJB1SOp7wthASOQ+1Yrvg2Q3m1hrhx/5Q1/U9v/AGWZ2VhFQYlZbo/+G3mWL2pv0tRCvti0lSDGgvAML3fCyxxzvVddnXhyky7rmoSqXwpS8sKE6TpeWF9C8vH+0/rtlyY+1Q5Uddeu0jS8sKmrW2n5QXHPkw9vNnlta9IeN0e0qSzxTzqO21A52BnD3qdY7NffTp6ieMdgGLj0NBK+Xn+VYbF3MC5QbO2m3pZRY49tQLzdjXHwSvGsNaBqxqNyEk69uoKfTaRTpAiCQ6o4bHVjfA6GcEOcFY/uxtEU6dPW94PQwSe0tXORWMAY956u5Tv3lS5761GJ5ejMdK0iId4kKsiRl7fVqVGD3KqnEcnfnyVFRua/mFh1/wD9ND8Vq6lXLO5r/X2HHD4TQxz/AKzV1MoCIiAubN813ztbftM/Ap6l0muad8v+bW3Lx2fg00FpBwGXs7RjzKmtAmVPacO59akWgc5QeHxQptIi7q7e1S3eKP151MpHBBTPOz1z6lAonnbjz+/vmoR39yAe/wC2tSqokEFTe+oqW898B36EGxdx+kOGszJPGp/Ju2y3I9Ig9aumkrGK9J1OJOJaNsiHM5yACOVo2rW25jS3waredPBvgPA1D6LgNomeYlbIqW2m1oeajQzAh04YkQRGJxIyUGsLXQ4NxpuxBxBykaiPdtBVNXs13EYt2+9bF09oVlpBI8fPi5k63M2k6268xyYQKxpPLKhvNYHNFyM8SJwki87GcYwV2LXC9hXVlkp1bgZg988VmMEEiCIwOE4aoUnwZgCHi6TAMQCcDE6ziMOUIKCAvLs5BXTwWAHlznG4QHANgtJJABnIyCOhQV302Xmt43FF1zDIvG6eMSNQLgQNY2JsUVwMxOfJl+qyrchomTwlQYEAkfUmQ3nqEAcjQSqTQWhnWkirUIcBADYAbDOIC4DULsRm6MeXN6dIMbdHOTrJOZPL6lB7UeXEuOJJk9KwHdFbOFtDiPFZ8m3YSMXkdJj/AIhZLun0rwFO60/K1AQ36oyc882Q5eYrBoAGASCssFhfVDngO4KmWiq8CbgcRMD6RAMx2Zq86Q3MuZRqVm03OaKjWsdPFLS1znTlxhxe3CFidkeRf4xEgSATDiDhI1wZOO1XE6dr/B/g16WcNw8kuv3uD4K7emLkaozWhJZIicvVzqt1fr0bVQutEgg6x2qrniidnrCCr3LfzGw/5ND8Vu1dSrlnct/MLD/k0fxmrqZQEREBc0b5R+drd9tv4NMLpdcz75h+drd9tn4FNBaGDDvipFcd8FNpu74qCs3vHeUHn0QptM8XDqxUp2QUxnin9PagpXd5968798V68Y9/0XgHfHuUHhPc+9SKxnDr5tnSp5VNVGPOgqCzih0NIPIc9hdewPYrtoHTXAlrHkmlOE+NTOvnH77QrNZqt2dbTmO+RC8IBk6icJzgCMkG2bMQ+6QbwdiCMZEF0iM8Bhiordues1pLjVY5r9VVnEqjIw9plrzlN4T9YStaaI07Vsx4hBZMljsQTMyDm12GY7Vn2h92lmqwKhNF+sVPFPNUGHSYWbKsWXSG9vXGNCpSrN2E8FU6ncXqcradxWkcvg1WJmA9hE4Y4PicB1BbesLg4BzSHN2tII6CMFcqRU6jTTVk3utIVTL6bae11aqzXng0ucepZBZN7KlTE16zqp8ikCyn0vPHcOYNWys1YdOaestCeFr02nyZvPPMxsuPUm6aWahYaVOkODaGDCAAYxMDHWdqsunNM07M3HjVCOJTBxP1neSzl6lbdO7ty+WWVlwSflKgF7HMsp5NJnN08yxBziXFxJc5xlznGSTtJ1qyexHaK76j3VKhvPdmdQ2Bo1NGoKGF4AogtIpmNg98QoroiYMd9amuZKhLe+HrVEBbJ5/UrkRAy9ipGNhVbjggqtyf8xsP+TR/FbsK6mXLe45s6RsI/wD0UjhyVAfYupFAREQFzDvtNLdMWycJNNwnWDQp4idUgjoXTyk2iyU6njsY/wC00O9aDkizYqO0NgYSOkrqC27krDVEPslA8opta77zQD2rwbkNH+ZWb0NOeuEHL1QG63E9ZUTWwwldPncfo8mTYbKTtdQpk9Zap7NzljGVks45qNMf/KDk6TtQE7V1n4Asnmtn9FT9y98AWTzWh6JnuQcmXjtPWvHScyT0rrTwBZPNaHome5eeALJ5rZ/RU/cg5LAPeJ681GCdq6x+L9k81s/oqfuXnxdsfmln9DT/ACoOT7x2ry8dq6w+Llj80s/oaf5V78XbH5pZ/Q0/cg5Ps7iw3mOcw7WOLT1tIVwZp61gQLVaPTVD6yuoPi7Y/NLP6Gn+VefFyx+aWf0NP8qDlm0aQr1MKles8HU6rUI6iYVIxgGQhdY/Fux+aWb0NP8AKnxbsfmlm9DT/Kg5RvFLx2+pdXfFuxeaWb0NP8q8+LVi80s3oaf5UHKN87fUveEO1dW/FqxeZ2b0NP8AKnxZsXmdm9DT/Kg5SvHal47T1rq34s2LzOzehp/lT4s2LzOzehp/lQcoydp6yqt4wXUXxYsXmdm9DT/KpNo3H6Pe0tdYrPB1tpMa7OcHNAI6Cg543uhOlrAJx4Wc8cGOJ9S6jVDo/Q9noBoo0adOBAusAMRGcSelVyAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEBAQDxAQEBAPEBAVEhAQFQ8PEBAPFRUWFxUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGzEmICAzNSstLS0wNzcuLzI2NS0tLTUtKzc3Li8wKy0wLS0tLS0uLSstLTctNy0wLzEtLSstK//AABEIAKsBJwMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAgMEBQEGCAf/xABPEAABAwICBQULBwkHAwUAAAABAAIDBBEFEiExQVFxBhNhgbEHIjIzVHKRk6Gy0RUWF0JSksEUNDVVYnPS0/AjQ1OClMLio+HxJCVFY6L/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBQT/xAAsEQEAAgIBAgMHBAMAAAAAAAAAAQIDESEEEjFBoRNCUWFxwfAFIjOxFBUy/9oADAMBAAIRAxEAPwD3FCEIBCEIBBQvOO6lj7vzGFxaC0OqHNNiWu8GK/SNJ6C0aiUEvlJ3UaWlLo6drqyRtwTGQyAOGwym9/8AKHBaVW92Cvcf7GCkiG57ZpnfeD2j2LS6pwBsFFJQbg7ur4p9qlHCE/i8pP0rYp9un9T/AMlp5Cwg26bup4q5paJYWXBGZsLczekZiRfiCtdm5RV7yXOxCuufs1FQwdTWuAHUoRSUEv5crfL6/wD1VX/GsfLtb5fX/wCqq/402ylcQCLWO8ofSOAJNrDcVn7Wm9b5ev8AwOp7Paeznt8d68jny7XeX1/+qq/41OwrlpiVM/NHW1D97Kh76lhG60hNuogqmSStHkbr9LGKfbp/U/8AJY+lnFPt0/qf+S0klIJQbx9LOKfbp/Uj+JZ+lnFPt0/qR/EtFul08Ze4Af0EG8fStilr85T+pHxSD3WcU/xIPUt+K0ydwJIHgt29A29P/hNAg8P61oNvqO6hirjorBH0Mhpbf/tjimPpJxb9YP8AU0P8pa9GRuCkRkdCC5+knFv1g/1VD/KR9JOLfrF/qqH+UoEbhuClREbh7EDv0lYt+sXeqof5SPpKxb9Yu9VQ/wApPxEbh6ApkRG4egIK9ndNxUf/ACBPQYqK3siVth/dgxFhHOCmqGjWHMMbzwew2H3SnYiNw9ASp8PhmFpImO/atleODhpHpQei8je6JS4iRFpp6m3iJCCH7+bfqfw0HoW4rlzGsGfSuEkbnGPMC140SRPGkXI4aHDdv1+49zDlWcRpbSkGppyGy7M4PgyW6bG/SDvQbkhCEAhCEAhCEAhCEAhCEAvA+U1YZJamY6edmlIP7AJaz0NDR1L3smy5yxF39iw72g9dkFBIblR6qoEbczuobSdyeKosbkJky7Ggek6SgxJi8hOgNaN1rn0pPypJvb6FCWEE35Uk3t9CPlOTe30KHZBCCaMWl+1bhoQcVlOt1+OlQ8qxZRqFu+2tbS/lKTePQj5Rk3j0KIhSqlHEH7x6EMr3bQCPQoiEF1FKHNzN1aiDrB6VZYeMscj9oFgdxINj6QFr2GPs/LseHA8QCR7QFsUA/wDTScW+8EECU2aBvJJ4DQP9yTDpPBYqfqcD7xWIDr6vxQTWFPscojXJxr0FhG9SY5OCrGHeeoKRHbcgtopFLikVPHbZo4KVFMRr0jf8UF1FIpLHKqikUyKRBKniEsbo3antI4HYeo2PUoHcbrTDijYtQqIpWOHS0Z2+77VKgk1Km7nrrYzSH/7nj0scEHR6EIQCEIQCEIQCEIQCEIQNz+A7zT2LnPEvEx+a3sXRlR4DvNd2LnPEvEx+a3sQUBWvYv453BvYthK17F/HO4N7EEVGVZskqZGSShukgbTqHSi6nYXhT6jnOadGHRNz2e4MLgLk5b6zoUGmw4BW4dHTmOshlfLc2c0tGwXGrYe1V2JNpXi9NDURkglpcWuYQ099sGpUchOa/TfT6VsuGZqhrXRlvPsnD8jyGh925XNadRuLaDuW1Z3x9mfZq24/tRSU9tnao5jW8Yrg2V571wa7SGnW3eOo6FUzYRt0qbY9SRaWt5d6wWq6mw+31VGkoDusqzik9pCLh/jWcT2FbLB+bScW+81a1h3jWcT2FbLD+bScW+81ZNFZVfU4H3ikQHX1filVX1OB7SkQHX1figkApbXJsarpmofoA39iB51UT4Ogb96egu46zfpKr8ykUcpDgiVuYpIwHEEt36x6dil084cO0KywyZrmWNtIsQdIIVLWRczMWjwTYjzT8DcdSCzhksbbDqU2KRVAfo4KZFIiFjBJqVd3Pv0xR/vz7rk7DIme55+l6P8AfH3Sg6TQhCAQhCAQhCAQhCAQhCBuo8B3mu7FzniXiY/Nb2Loyo8B3mu7FzniXiY/Mb2IKArXsY8c7gOxbCVr2M+NdwHYgWaXQDYHQFHfFb4Lb6GaKUNaWRkhoHeeHq3a07VcnM7DJD3zQbEHQQd3HoV4pMxuHpthj3Z3+fng0pkd9OweFvHTwVnWcn5WBr2t5xjwC1zdN77FHngLH6tIvr1EaiCFvXIetD6WSB+uIgtB094fgpx1i06lhqWhz0x5wgi2oddgrXDqYRuBudGnRvCdqqX+2dYX749O0pfNWdY2HH4a1ete3lGttgwyvBa1rgXtaHkXJLgbX1nZfYrSOGOQXsAT9UjUqTD6cNMbSC7MQLDRsJW2Chu4WFugalF4ta0cut0uClsNomvMK12F7bDUoNVQxhrhksdOkLdpKXvQLbL8VrOKxlgOjwr3PSujipOnB6mkRLyXDfGR9fulbND+bScW+81azhvjI+v3Stmh/NpOLfeauQ3VlV9TzT7xTUO3q/FO1X1PNPvFNRber8UEkeB/m/D/ALqJU+E3rUyn03bvGjiP69ijTx3HSD7dyBl4UqmmDR/WlRGuvx2hClZdUWIFu1ZrarnHNO4Ae1U7XKXSi5udQ9pUIlcNfoUqF+pVzXKRG9EJsUie7nf6Xov33+0quikVh3Ov0tRfvf8AaUHSiEIQCEIQCEIQCEIQCEIQN1HgO813Yuc8T8TH5g7F0ZUeA7zXdi5zxPxLPMHYgoCtexnxruA7FsJWvY1413AdiC0nwJ5m0d6C1rw4EaG2F1IixbvhDGXZg5uWS/eveNFnDbxTmM4hKIo2NBDXMAc8DSbAWaSouGYeBG6plFms1DednWVeKzW2vJ7r3x2/ijmfT6L7EaRlRHzrBaWPxrbaA7o/rVwVRhkpina5lxoIcNhbuKueSE4mkIP9+x2Zm5zB8LhVOIRmOoc0aDZzeu9lF/K8KVmJvqefumV75A1gZmAcxpswWzXGskaTfimaXC3Zhzl2nYzRmPH7PWrOLlFHHFHFHd84ZlfIRoia3QA3eVD/ACwOP9k9zpDsAN7roYsdL/umXN6nNOO3ZSNz6JYdIyVjyIw1upt9o6d+hb5ycxEVBF2gEcCtYpOTVRNkdMQ0H7Vs1uIW84DhwhjF7Zt/Yr5MdPFv0vUZaUnunmU9xYO9NtGkKkx6ja5uzWU/jJIdm1aFS1leXNIseJCtixz4wjJmi3/UPE8N8ZH1+6Vs0P5tJxb7zVrOG+Mj6/dK2Wn008g6W9oP4LkJVlX9TzT7xTcW3q/FO1WpnAj2n4hNRber8UDoNtI2KQ5ucZm+F9Zv4j+v+8ZZBtpGg70DckIO8Hem/wAmO/tU0y38IA9I0FJ73p9iBiOn3m/sUthTd1kFBJa5PxvUNrk616B+J6ue5x+lqL97/tK12N62fuYR5sXoxuc8/djcUHSCEIQCEIQCEIQCEIQCEIQN1HgO813Yuc8S8SzzG9i6MqPAd5ruxc5Yl4lnmN7EFAVr+NeNdwHYtgK1/GvGu4DsQej8m6YSTQU7pc5cG5GvIJLC0nKN5Bb6CqDlbygcyWWCJjGsjlczK5lzdpIJ08FsPJ7lFDQRCtqKds0seVtO1oaxzXFuk5tmi+nSVX4nyhpsTkdL+RthqCQZCe/GTa7RbMV6cs2isV216eJyZ7TX9u/Dfy+H1MclcVbNLTRczle1szpJG2s6zHO2ahot1qk5TVBdUPIuMz3cda2LkwwRx1GIZyxjOciiZZtpNV7aL6wwX6Sl8neSUlTaplBbG43H2nBRWlrxESpe8Vm2p38/RBwamEbA1jHSTSHvrC7AdjeIW94ByMaC2WV13kg2DbAdC2PDMPiha1rI2iw4lWzH717rZe2sVpHEOfixRFpvM7mUR8QaRutZKcbJvEJABcEHjoCh0s2YHNcdgVIrMxte2WIto9O+40gda12vhvcmQgbmgkK6me1li6RoB3kJir5lozi7iR9U2FratS1pPazvPdy56wzxkfX7pWxYc/Q9h1Oaewg+wla7hnjY+v3SrhhIIIXHe8mZhILfrNJIHscPYD1KIDtCsJTfvh19CjyR306j2oGud6Pajnej2rPMnoRzJ6EGOd6Pas870e1HMnoRzJ6EBz3R7VkT9CxzJ6EcyehAsTdHtS+dJ6AmuZPQlNiPR2oHmu2f1Zb73HI//c4nn7M9uGR1+0e1aTR0uY21Da4r0nuYxBuJU4bqEM/uoPbUIQgEIQgEIQgEIQgEIQgbqPAd5ruxc5Yn4lnmt7F0bUeA/wA13YucsS8SzzW9iCgKocZb/am+otb2K+KiYjR860W0Obq3HoKCbRSRSUbRK7vtILyQchB0C2u+pYwegl5xjGjm4blz5raXj+ti1d9K9p0sdfeAT7QnA+bLlvNl+zeTL6FNYrE7mHszdZbJStfDUdsz5zHw+T0SCFtZIyGPvKGnd3xJ8Y+98o36z6Sdq9Np52xsDAQ1oaAANQC5tY+ZuhpmaNzTIB7E7+WVP+JU/em+K9UdRWI8HKviva298eT3SvxZgdcPaQL33qBPyqGa0Yvotc7+C8WMs/2p/TKsZ5t83pkW1esxx7nqwt0mWZ33+j1aq5UzAOa4Na1wta1z7U3RYg+KFz8zu+0NvcgHboK8tfLMdbpzxMhQZZrWzTW3Xkt6Ff8A2FY4ijK36deee/l6MyvJLTIc7gTfZo7FLrMbY2B7jeNjQdJHhn6oG8nUvLc0u+X/AKiDHLIdIkcd7s2jrdqUX/UImOKtKdDqebHMJZeQfshxPUFbWTVFTc20jQXOtmI7An7LmOiSAsFnUlosgbydKxl6U7ZFkDWXpRl6Ut5AFyQBvOgILgLC406unggTk6VkM6UoEXIuLjWNoSwECBH0p1jBxQAlBBIhfcgbLr0LubfpOD9zN7q87p/CHFei9zb9JwfuZvdQe0IQhAIQhAIQhAIQhAIQhA3UeA/zXdi5xxPxLPNb2LpCVt2kbwQubsR8SzzW9iCiQhYKDCdpaZ0hcG2sxpc9znNYxjBtc5xAATRU/Bzf8ojySvE0OQmFnOuj74EOLbi46wghVEWR2XMx+gG8bmyN26Ljbo1cFmKmkeLsjkeBtYx7xfiAruho2xG7qeonbe5Y+jGY6NQeXnKOoqNAwzQwsAqo+YMzTzMTpoyXPzWuHNs5urSEECCgkfIIshY8tc60l4+9AuT33BKFBe1pqU3ta08WknVbSrZkroTAXRVT46aOrzyyxFt+dAI0EmzRl03Kgw8+Wtc2ii1NLXNpSRvBbotbcghGjkzPZzchfGbPa1pflPTlukxUsjwHMile06nNY9zTwIFlOrXzcwGSNnbLLVue5xa6MSF7A1rRqu641W2KVUUz5ebJbWxFkMcZY2B723YLXaQ8a+CCjewtJDgWkaw4EEcQVhTcZcTJEC2VvN08cd5mlkj8pd35FzrJO06ioSDFkWWUIMWRZZQgEIWUDFWWhhLwXN0XA0nWkyFmaO7SSfBNvB1a/YnZy4NOQAu2A6Ah5fdlg2x8M31cECIy3nHgNIeALutoI2aU+EhpfmdcDJYZSDpJ23CdCACyhZCB2DwhxXonc2/ScH7mb3V53T+EOK9G7mjb4nF+zTzH3R+KD2ZCEIBCEIBCEIBCTmRmQKQk5kZkDdbMY45HhpeWMe4MGguLQTlB6bWXOM1QJoGyNFg8Zg298oOkC+22pdJZl4fyx5FOw0PlicH0ck78rQ0g0rXm7GO3tuS0HRqaNqDQiEkp2YadCZQYV5yQqo4pZTK9kYMYALyGgnNq0qjWCg9H+WabyiH77PiqXktiEMcUokljYTVVDgHOaCWudoIvsK1FCDd8fxOB9LUsZNE5zoJQ1rXtJc4tNgAncLxWBsEDXTxBzYYgQXtBDgwAgjfdaGsINs5S18Uho8ksbsldA9+VzTlYM13HcArj5Xp/KIfvs+K88WEFtyrqGSVDXRva9ogYMzSHDMHyG1xtsR6VUoQgEIQgEIWUAhCEAhCECghYCygyshYSgED9E27gvUO5LS5q2om2Q0wZ/mleCPZEfSvN6QZNOkuNgAASSToAAGs32L3ruf4EaGkDZBaed3OzfsuIAaz/ACtAHG+9Bs6EnMjMgUhJzLN0GULF0IIhqE26qCdMSQYUDTq0BNnEm7+1PmnCQaUbkEZ2LsG3tUOtxyncx0coD2PaWvY5uZrmnQQRtCszRt3BNuw1h1sb6Ag8P5Ucmo2OL6CR0kZ/uJLiSPoa86Ht42Pna1qM5cw2ka5h/aBb2rpl2Dxf4bPuhIdgcJ/uo/utQcyflA3j2I/KBvXSzuTdOdcEPq2H8Eg8mabyeD1cfwQc2c+N6OfG9dJfNim8nh9XH8Fj5sU3k8Pq4/gg5u58bwjn+ldIfNim8nh9XH8EfNim8nh9XH8EHN3P9KOfG9dIfNin8nh9XH8EfNin8nh9XH8EHN/PjejnxvXR/wA2KfyeH1cfwR82KfyeH1cfwQc4c+N6OfG9dH/Nen8nh9XH8Fg8lqfyeH7jPgg5y58I59dGfNWm8nh+4z4I+alN5PD9xnwQc58+N6OeG8Loz5qU3k8X3GfBHzUpvJ4vuM+CDnTnhvRz4XRfzUpvJ4vuM+CyOStN5PD9xnwQc6c+Ec+N66M+atN5PD9xnwWRyVpvJ4fuM+CDnP8AKBvHsU+ippZSObjcb/Wtlb946F0Czk3TjVDGODWhOjAYf8NnoCDReQ+D01K5tRUSc/UjwAGu5mA72XF3O/aNrbANa9AjxuM6j2rDcHjGpjfQnW4cwfVCBTcTadqcbXArDaMbglimG5AoVQTgqAkCAbksRIFCVCBGhA6iyUiyBFkWSlhAmyLJSECbIypSECcqxlS0IEZEZEtCBGRGRLQgRkCMgTiEDeQIyJxCBvIjInFhAjIsZE4iyBvIs5Al2QgRkRkS7IsgRlRlS7IsgRlRlS7IsgRlWcqUhAmyzlWUIMWWbLIWbIEoSkIP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSExMVFRUVFRUVFhYVFRUVFRUVFRUWFhUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGi0lHyUtLS0tLS0tKy0tLS0tLSstLS0tLS0tLS0tLSstLS0tKy0tLS0tLS0tLS0vLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xAA/EAABAwIFAgMFBwIEBQUAAAABAAIDBBEFEiExQQZRE2FxByJCgZEUIzJSobHBYvAzgtHhFVOSwvFDcnOisv/EABkBAAMBAQEAAAAAAAAAAAAAAAABAwIEBf/EACURAAICAgICAgIDAQAAAAAAAAABAhEDIRIxBEEiURNhodHwcf/aAAwDAQACEQMRAD8AvMqWVIbCleBdMnRWPYSnmMJFrlTfsiNkNkWKiO2kSZaG6n5CklqLChikpg0JUkdyPJS2RXQdHZKx0Nth0So2d0uOQbJxzEWFCC0J9iZjYbqUGWSATHFrdO2QZqnixAxICSAlhANSAOyAchdEgYrdESk3QJQIUkkoAIiEAGFHxCvjhF3nXhoF3H0aP32VL1j1VHQxjYyyXEbT5bvd/SNPUkBc/h6ozFz3EvduSfPQDT6AD5BUjC9sX6R0jCuqqeok8IF0cnEcrQxzx3YbkO9Ab+SuiF51xnqSSZ/u7tOmS1mEc5hz5g6fmKv+jvaBPA8RzufK3lryXPt3jcdSf6Tfy7DDaLLDKvV/Xv8Ar+f5O0FKUagr4542yxODmuGhH7HsVIAQRBZIcUHuSCUAC6FkQRkoAFkCgkkoAMuRAoiUYCADsgQgiKAIRalBGkuKDQM6VlTbQn82iBDSZkTjinI2hABQuslPddKc1JLSgBETdVLb5pDQEZKBDrQE7dMMKeDUDAE9cog24QSGJISmlHZJc6yBC3BNhOMcDsUlwQNgsk2TgROQIIFJcUaJMDzX15jTqmumeScrXmJg7MjJAt6m7v8AMnKexofu/wAYe4Td2g3DXH+kts2/FnD4ir72s9KtpphUR/hqC4ln5ZBYuIPY3vb1WCoqx8Lw9hsRp3BB3a4HcHsU5bVFcUlF2aeswuSMRRQNuZdA4bOPOvGmvpfsmcQw2SLLFVC17eHKL3B4a64Btpvb/abgmMDKTGD4e8sFyXQ8GWA7uj11G7fTU2tZX05e2aaqfWPaAIomM7XyBxsBcZj9ToShOyzj7XRG6YxqpoahsWji8A5Sfdlab7/lfodefU69g6b6ghroRNCdNnNP4mO5a4d/3XA8Rr3ule616mS7GsZqIGEZcoI3ktceVyTqdNB0O2fC5mzTENhkGWVgu5wbqWusOWntfQlKKvrol5DWr79/77+/7s7W8aow1FBM2RrXscHNcA5rmm4cDsQUu6CA2WpJKdumigAXSHFKKbcUxBh6UmwjugBbUaJpQJSGR3JBThSbINCQlNCSUthQIIhE42RyhNNCAHWPT7Sm4o07ZAgAo0zqE40XQAHFSozomxEnmDRAwF9tSgyTNtoFSdRV5jexo2tc/WyM4sCMrdwueeR3SPQ8fxU4c3uy3rJS1pIsfP8A2UOCoDtSdVEmnOTyKrMHqw6QtvqDb5cKUpN9nTjxRjdI0wbcXGh4IT9DNnuHfibv5jumYRZIa/JIHcbH0K3CXFkc2Pmn9k9wRWUfFsUhpwDK+1/wtALnu/8AaxtyVSnrelBs8TRg2Ac+Jwbc7a/wuqmeZZoi1JyqBWdS0sUBqHTN8PYFpuXO/I1o1L/LdYVvX9bK5zo4YGRfC2QPc8jjM5rwAfQG3mnFN9BLXZseq+n2VtO6F+/4mOt+B42PpwfIleb8Zw18Mj43iz43ZXDlp49Qdw7legulOto6p/2eVngVAv8Adl2ZsgHxRP0zd7bjzssN7boYPGgLSBOWvElvxeHpkLx65t00t0NOjlNPO5jg9ji1zTcEGxB8ipsuNTOFrtaToSyOONxvvdzACoD22NkTSijak10zXdLVMVL75a10hHxC4aDxZIx7qrPdsOx3c73rHs3v6kfJZptyN0jKqN60T47tnZfYhVzPhna8kxtkbkvw5wJkA8vwm3c+a6W5Zf2Z0rY8Np8otnaXu7lznG5P0A9AFpCVJmQykoilAJAIISE68JBQAQCItSwic5MBLUCUklJzpDFBIclhAhBoaDbpYagAjsgAnNuijZrslgJQQIda1KCbzI0gDLEuMWRBGAgBd0uMptGxAih6pp80jf8A4z+h/wB1SYbFY37rQdUOyuiPcPH7KnpgAVy5NSPb8S3hRZzG4t5LHSvdBiDLbSs/Vh1/cLWWNibGw20KzHU8gY+mk7S5T6Paf5AWGVx6lRvqIlwGqrsfxcMJijs+U7g/giB+KQjns0anyGqhHEnytyQnK21nzdu4iB0Lv6joPM3AxGN9Tsi+5pAHWPvym7gST71idXuPLifqrwxpLlM4suZylwxd/f0a6iiBJJeXyGwe9xu422H9IHDRoFJlpmkFrgCCLEEXBB4IUbAqwVUUYazLKPdNthfk+Xe3/izrqR8Lsr7eRBuCF0YssZrR5+bDLG9mB6k6Ua0eI0XjGt7XdF6/mj89x+orn4mYG5HbAc6lo/MD8bPPcc33XT2zBZTqXpZj2Exj3N8rR70R/NGOW92/TsqpkjmuLYqS4OaSHMcHMcDZzXDUFp4VZNXvmLnSOLpHHNncbuJP5im8SpXRSOjdu08bEbgjyIsmImXv5An6JN7KJaA866oi6/8AsnYIHPIaGlxOwAJcfIAala/DfZjXygOLGRA/811nAdy0AlZHZlCRaw4W29nvQT6xwnnBbTA3A2M1uG9md3fIeWt6b9lEELhJUyeORY+GG5Y839Wt3jy0Hquh3AFgLACwA2AHACHIzYcbAxoa0ANaAAALAAaAAcBBIL0kuWBCihdJshZAhLnIsyLIUrwygBGdEXJXhJbYUWAwSkkqX4HkjFMix0MI7JeVABI0IsltCPKlAIALKiITgCGVAhlKBTgalNCAExhPBqIBKugBM8oYLnnQeqehYLXO6oscmOdoGzRf5k/7IxihBt22XNkn8qPS8fAvxqXtjPW5+5EgP+GcxH9J0d+mqqIWFoDm87m+/wAlYY4/xIJAfia79QVj8J6hcaeMDWVzQBfZttLnv/fzlGEpy0dv5IYsXy0bCGVoaXveGtaLuLjYADcklV1Rhv2tzXujIiBBYwg+JIeHFu7R5bny2OelpSAHvqzmJzAXFrtPLb9/pxZa7pTqm7gHZfEGnFnju08Hy/sd0PH4bezyc3mPJqOkZDH6qaZ7qTK6nY33XMcA1z2jg/lb5DjfsrXBeiInCxfG49g4H12P6rY9V9Ow4pETmyyZbXGmgF8rv9FymPEf+GPfSiP7wyRyNld73hDVul9CNdHacXsVz5cUm9s6cGaCj8VR2XAcFipW3aLOsQTe9wf/AApFdikLm+E5ufMCfxNG3IN9Ld1k8L6nMtI6QXc5udozOBLy0XvptqSPkue4tjrrCziC1xcHDQjNqQRfuFDm8b4xLfhWVcpm9c9uYhpJtt3sptKVnuk+ohUUzmyQ2czab3Wsvclzr/iLhta9rdlkutuvbh1PSnTZ8t7E+TLfuvShK1s8nLjUZUjMdayskq5BHqG+6Lc2J0HoCB8lq+kvZVLK1stU4wtcL+EB96QfzE6Mv2sT6LnFO8h1+Qb35v6r0h7Pcc+20jXON5GfdydyQNHfMWPrdOTFToewXp2mo25YImsPLt3n1edSrQBSxAnhTqdiogCMpYgU9sKX4KVj4lW+BJZTFW3gpTIQix8StbTJYpVZ5Ak6IsfEr/sxTjKZSi8IByLDiiP9mCAplKQI80h0MNpwnhCEq4RGQIGUV0lxREoiVomF4iW16jyMKXC0pgSQhdDKiyJAw7o2lLZGnBCgBguSc6kmAoMgQDM5iDyZHjtYf/Uf6piOMmydxB2WolHFx/8Ahqo+ouqY6NhLnZnke6wWuuVxcp0j2YTjjwqT+kTMcxSKBpMjg0bb2v5arizMWkiJY43LCQCdDl2t6chOVuNuqJxNUN8VgdcxZnNblvq0PbqDb4v40UObw3OLRmawOPgveQXNZc5WyluhFrajY7aaLtx4vxrR5mfO8r2tLoEuLEkuG572/XurnpWteAS8nKXXBG7T+YKow6CLxPDnBae/HlfyPdbaPBtWRsAu7bsAAST5CwJVYr2c8n6Nt071I64Y8jORofhlH8H+/W8xXBI6yJzmANeQ4XLQSC4ahwOjhoND2HIC51W4Q+nic8yZmN95wyZSzu9hudRuRyL+h03SnUpa4RyuGb4X/DI3azvP+zwSpRTQoycXaMfUR/8ADWPis/PcFxcdHC1gW2sAN+5ULCcGMw+01J8Knbd2ujpBv/lb588d11D2gYvTGJrqhjA2PUZgC4u/I0cjyXDeqOqJKx1vwRA+7GP0Lu5XNDAotyeztn5UpRUY6J/VPV5mH2emHhU7dAG6F4HpsPJZMFFdAC6tZzpEnD4s8gH19F032a4l9krGtOkc1o3dgSfcd8j+jisZ01R2dmtdat2HaXG655z2d+PB8Kfs9AWCBIWa6Nx/7TTNLz94z3JPNwGjvmLH1urt1WFpbOJ/F0x8uRF6hPqimXVBTozyLAyeaR4/mqx0jimnk90ULkWr6xo5UV+IBVckg7pl07fVOhci2OJBGyvVG6pHZINeRsB+6dC5GlbWJRqyshLiMn5regCgz1jju9x+ZRxHyNnNXgbuA9SAoEmMRX/xG/VY2SUd1HdUNWuJnkdMMCAg8lMhCkMZ5KdlKKs0yXHTK0bAOyeEY7IsdFYIEPsqsHABEHhIKI0dKVIbTI/GRGoQGhX2cJJhaNUzU4i1jS5zgANyVxv2g+0oy5oKZ1mbOd3/AL7fvxqMXITkkSPaH1hFDPIICJHm1iPwt91ouT6j5/quTVc75XmSQlxJ94n9h2CDiXEkkkncm6WG2/vhdEYKPRiU5SqyTmj8HN4h8S9vDDTYC++bbZV2W49ST8k8IG3vb5XNk/BTZ7nNZo0FrXJHa+wTSau3YSknVKv93/0ighwDHmwH4H8s8j3Z+3CusGxuaFzI3OAfGbxl2rCC0gtcRuxwO420KrqmmAtZ1/W1/lZNNsQI33y39xw1dGSeBy0ndvzGu40ZuzeYzX1NRGWyxx00Gniv8TOXNvfKywFr/VZWp6p+9aGN+5Y9ri34n5Tqb/DcaW7E3uqzGnVLHfZp3O+60DCbgX5AVZZYcvo0o/ZY43jUtU/PI42GjG3Jaxo2Av8Auq1BTMOojI4X2/dYbopGLk6RDUyiiudrqwx6hDGNIFrfynuloS4m1gO5WHL42dOPG1kouMCpXhwAAHyu76LewYa7IL9uSL/QJjp/B23BNzf5BbeKlDW5bWC5XKztm6Mt0zL4FVYizZRkIt8Q1Yfrcf5ltn1LRwVn8XorgkbjUeRGoKIYuC0E6EgEjseQq4Xejg8uNNS+y6fV9gE06qd5D5Kimxlo5Cr6jqFo5V+Jx2aaSoPLioktWBysbWdUtHxK36OoX1p8Z9xCDYcGQje39I7olUVbHGLm6RcUzZJv8Nhd57D6lO1OE1LRfIHW4a4E/Tla05Yo/dAFhoALBQzV2Zc725Ci8rvo6V46rs53LjABIOhG4O4KhzY4ByoHtRfbLUs0Jd4cgHOhLX+uhH0XOH4i93JXRBqSshPG4SpnRajqFvdVs/Ug7rD5pHcFOMopXbArZijSTdR+ahP6hN1Xx4HM7hSW9Ly9igNHqceQSfEIUb7QUh0hK56KWShVW5Rur2jkqAU29w5I+qKCyVJXhMurTwoxlb3+gReMOAU6FY8ZXHlRsSr2U8bpZX5Wt7nfyHmnmT+QXJva9irpHiMH3InhjgNs7o2yC/ycP+lajG3Qmyt6v6xlrQRHdsTSbtFw7Lw4+R1v/pdYoqRSyFhDgdR/dvRSaika9pkjG3+Izlh/M3uz9vTboSrRgiAcpxqaATjFpCHHNB5/ZNvY8at1HbbX+U4VLwugkqH5IwNBmc5xsyNo3fI8/haP/FygVkOipJZZGsDC57jZjG6uc4+mw3Py4VvVVkOHXbEWzVuodKPeipSd2w8PlHL9hxymcTx6OnY6moiTmGWaqtlfL3ZEN44v1PKyZUpS9IpGPtipJS4lziS4kkkm5JOpJJ3KSgAjA1UylWO08FzqtdgFBchZ/D2XIC6J07ALaLnySfR6mDFGMLKvrChHgm3A/YKu6HjB1K1GOQXjeCOCuXCsexpiaSASb20JHb0SinKNGMk1jnyf0dlw/qKIO8OI+I4b5T7ot3dsTpsLnVaunxKVzc2UC3Buf1AC4t0dWQU/3k0gYOBYucfRrbn5nRauo9qdMBljgmdbl2Rl7fMlW/DCJwz8nJN6NdX9QZRd8RI5LDr62I/lc66k6gAlvC45HAGxBBa7Ygj6HTun5+vopvcNPLc7BjmSHXyFtfJZjFqiKU5onXP5SCHD1B/hbhCKdonPJOS4yBNj8h5KhyYhI7ufqui4P0UyaKOZrdJGNePLMAbfqrum6FYOP0W+SJnNujunpK2pbG4OEY96R21mDgHudvr2Xo3CaRsbGsa0Na0BrQBYAAWACpenMHZTgtaBcm7j+w+S0YBAXHknzl+kd+OHCH7YxXuuLLH9UYoYmabd1q6m6591ZPbMx2xU72WgjPCmdiDXRge61zXOPnrYfuVLpuhGj4V0Lo3poU9KxpHvuHiP75nC9vkLD5K9FCF1RfFUjgzPnNs5pT9GMHwqwg6UYPhW9FM1H4bQnzZPiZCLppo+FShgDey0pe0Js1DUuTHxRRGueew+X+qSah53cf2VK/FmjlRZcdaOVriZs0N+5ujDgshL1MwfF+qhT9WtHKfEVm7M4HKQ6tb3XNajrMcFVk/WTjsnxA64MSb3XKevaoQVznvb4lPVMZ4jb2N4wGksPD22aQfNVr+q5DsoOM1j6mLUXcw5h6Ws4fz8kcaGJxLDvCyvY7xIJLmKUaBw5a4fDIOWpilndG4OabEfQ+R7hNYDjXg5opG+JTyW8SPm42kjPwyDg82srDFML8LK9jvEgl1ilGzhy1w+GQctVoysy1Qmrga9pkjAAtd7OWdy3uz9vTaDGFIp53McHDhW32CAMZVTl0UL7kRtBEkzm292Hsw3/EdBY2vxroyQ8Kw0zB0j3CKnj/xJnC4H9LB8ch4aPnZRsc6gD2fZqZpipgbkE/eTuH/qTuG57N2Ci47jr6ktGURwx6RQs0ZGP+53dx1KqSVGUrKxjXYEGtubBLNO/IJMrshJaHWOUuAuWg7EgEaeaVTDVYbKRXJ0XWFYcMpJ3t/CpasWeVssGpbtOo1FtNSL+gVQ/AZHzWtpf+9OFCM9uzvzY7goxQ3gEGc3yk/t/uun4BTuFrjQW00A/v1WcwjCzGctrfoug4XSFoGltP4KhOds6Yx4wSI2KYU+Rt2NuTxf6rjVZ09U+O6IQS5y82GR1rE6G9rW816GgZZtu2qsKNumo1KcMjiQywU1s5r0t7L42svUZnudlLm3s3TYWGp3O63lF0xSxgBsDB/lCvY4gNk6GBHKT7MfGPRnMQ6Qo5m+9Awn0F/kVyv2hdDfZo/Gpx7sZuR8bW82PLRvY7emi7o9iqMaphJG5p1u0gjvompuLFxU1TIfstAmwulktuxzf+iR7P8AtWrfA1rS48An6Kr6bhipKOCBhu2OJoudCSRdziO5JJ+akvqvF0afdG/meyvJ1s4oRt0M4e02uRYm5+qmmRNtjsLpiolsLrnWkdj+TFzyhYjqzD/EfGBuZGD1DnAH91c1tdxa6zWM4sA5rWm5uLXOrXX0WL2WUKWjpktY0chQZsWYOQuE13tEqMzmn3S1xadzqDYqlq+sZnfGflovQ/GeTbO/1HUkbfiH1VNW9bQt+IfVcEqMbkdu4/UqE+rceU+KFs7XWe0aIbOuqSb2k66ArlRlJ5Scyeg4mrkxmV3JUZ9VKeSttTdEuO91a03Qw5CdoRzIRPPJTrMMkdwV2Cl6NYPhVtTdMsHwhLkg2cOj6ZldwVY0nRkrtx+i7fFgLB8IU2LCWjhZ5jpnHKXoIne6uqLoUN4XUo8PA4T7aMdkuY+J58669nj4GmpgaXRjWRg3j7vaOWdxx6bZDCMakpw5lmyQvsXxSDMxxGzhy139QXrcUgK4h7U/Zn4GerpG3h1dLC0f4XJkjH/L7t+HjTRrjKxtGIj6ipm+9HQtz8GWeSWMHv4dhm/zEqmxXEpaiQyzPL3nk7ADZrQNGgdgoZFkklNtvsaSXQZKehpS4X4QpIcx2V83DppRlZHYeegWJSovixclbNPR4cKjpiV4F3UlYX+eVwja79JL/JYzCcOLhm4WywllbT4fUUMYYGVL8z3lpLrFoa5jRewuGj3vXbdTOkenXNYWyi3a3ClPKq0y+DA07kiNgdJYf3vx/C0GEYXeQu9FZUeHta0i2oP+hVhgfuk6Cy5nI7K9iBhgzggaq9iphl804CL7J5o0tsgw5Mj+HyrCB+g2UWSQbBKhlvslezLjaJ4fdLDtUiF7QEu7VREXr0GRdVtezRWSjVjBZKXQQezk/Ws1c2pghpne5UHINL5Xg3cd9ra/Irq+DUAhiYy9y1ouTu48k/NMYfhozZ3AEj8NxtpYkK3e1bUm0l9GJRjGTa9kaRyr6wghTpI1V1jwL3WWaj2ZjFpvDuDzsf4WDp5xJUEvNsp94dgNbhbTHnxyAxudbsexXNOqp2xA5T772ujNuQCNfpcfNKMbdF5T4xsyeIz+JLI/8z3O+riQo6COy7keU2Egjyo8qdAJQS8iPInQrPXceHjsn20Y7IIKBqh1tOEsRhEggdCtEM4QQQISZwE26saOUEE6FYxJijByo0vUEQ3cPqggtKKMuTOS+0Pp3DpB4tM3JM5/vtid7pbldc+HqG6gbW3XOo8BeTo0280EFPJJxdI7vGxxlG2jW4B04SQMvqt/h2BZRsPoiQXK3fZ3t1pF23DWkbbI20LbaIIJGLYUcGtt/wDSyabBlJIvugghoalslU5dfT+/mVL2QQQJ9kpjQn2+iCC0iLHQ1Hk7oILSJMIt80gR3RoJh0SWtsjLkEFsmQaqoAWWxzEQAdUEFNl4I51jE+Y3DtL6+S53i1SZZXG9wDZvoOfmggujDFEfJk6SI7Yk62nKNBdJxWOtpD2TjaEnhBBAiRHhTjwpLcCd2KJBAWf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFhUXGR4YGBgWGB0WGhgeGB4XGRgYGBobHSggGB8lGxcXITEiJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGhAQGi0fHh8tLTcvKystLS0tLS0tLi83LSstLSswLSstLS0tLS0uLSstKy0tKystLSstLSstLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAABAUGBwIDCAH/xABVEAACAQIDBAYEBwoLBQgDAAABAhEAAwQSIQUxQVEGBxMiYYEycZGhFCNCscHR8BVSYnJzgpKistIkMzVTVGOTo7Ph8RYlNEPCF0RkdIOU0+MIReL/xAAZAQEBAQEBAQAAAAAAAAAAAAAAAQIDBAX/xAArEQEBAAIBAwIEBQUAAAAAAAAAAQIRAwQSITFBIlFh0RNxobHBFCMykfD/2gAMAwEAAhEDEQA/ALxooooCiivCYoPaKa8f0jwdn+NxVi3+NcUH2E1o2X0uwOJudlYxVm5cicqsCSBvjnHhQLNubWt4Wy164e6vDmToFHrNVttfrPEhbLO7mBlsoDqdyhmBzHwFM3X30mBuW8Gjd2337kffsIVfWFk/n1W2yOk3wdkdLXfRg6sWG9SGGmXmOdakYyqycZ0ox6vBs4nMWyQt3O2aA2QraY5WymcpgxwpK3SzaEZuxxgWYzFrsTOWJ3Tm7sc9N9RkdYoF17q4S0GfMTJdgGchmZJeUMjhwJG6IWnrexMytmypnNop3m4t1iQW4sNfxjuMEVNHzD9MdoISws4zT0iVdwNM3ezKQO73teGu6nXZ/W29sqcQpZCRmlQGA4shXRo3xGtQdOtK+ECCzayrooJbuqLT2AszqAtwnXWY4aVGNo7b7VFQ2wI4hp+ih+Tr6xeV1V0IZWAZSNQQRII8CK2VWfUP0j+EYH4M7Tcwxyid5ttrbPl3k/NHOrMrDoKKKKCPdYWIe3s3FujMjC00MpgjxBGoNc3Wdq4xvRv4pvxbt1vmauj+sW0z7MxaopZjaaAokn1Ab6ovoftRbWXuXG0n4tc3E67/ABFdp1F4eG5Y49136O3T9L/UZ3HetTZqbFbQG+5jR63vD6a8GPx387i/7S79dWBtTp/hrigKt7dGqr+/TaOl+H7ML2dwMJlu6c0xAidIj5610fX58t/u8fY8/P0PV4WzDC5Ih91cXxv4n+1ufvVaHVd1iGVweNcydLV5zqeVu4Tx5Md+46xNe4raSM2YTHjH10i2jdBZNCDI3iNDBH0GvbneLl+CV3x6Dlw4MuXk+Gz2vv5Xn05xOLxFxsFhCLcKl17uZg+jTkULuEKsniGiN9RF8JtFfSxR/SYVNrJnaeJA3hQP1LB+mo9tXCksIMd0T69a+W4o8xxObXE6z98fsKcrWzdpMJTEkjwdo+emPG2mF0CTrU66OYAqmcbjOnLKY94j30Dd0bxOPwd7NiHF23ee1bIZ2lJYrmQEkT3xO6QtWrVedK7PxdojheQ+wz9FWHSkFFFFRRSDam2LVhSXYlgJCIC9w6wIRZY66TEDjTH012qwy4WyT2rw7MDHZoGkH8ZisAcgx4CYD0k2K72HUBmIUkLJ7xAJA8zp51qRi5aPu2OsPEF1WxhxbWRmN8qLhWTORe0GU5YiZ1O7TWndpDGs4GIvXGzHvM94lZJhjlLeswBqN2laMPjGQFLlm3kI9F7IAAHhlzA+O/x40gx2IfskViZEFSd8aRrV0lpQuyC1/sbL23YkiWK2gY46sdI10J3VKNl4EbMuLimxKPiVDBLdnvIuZWQl3Yd7RpgAaxqah/ZO1vtspyzGbhNbNkDtHUHVRqw/BXUjz0X1sKqFu2ME11szsc57zzvLP3jM8QCB681Nh2K/DWpQmDDnO51BzEyFE8czHQak6DykiKT4raCN3bQe6d3c7lv1ZiM1zjqMh/BoGJcCV32U83j3GszZPCzbPquCnP7mX2YKbdpDlLgMuYwASTLEHcDXmJ2LdXebR75t6ICMwiflab9J5HlRTLfw7fzIXxBJHtGlareAY094jZ160e/bIgAyhjQzBjVdYPOsEdW3jNzHoOPEcGPrHkaIw2Ljb+AupirD5XQweIZW3qwnvLIAI8REEA1fHRTrXweKVVvHsLvENqhPg3Dz9tUXZOUgBu5oA8aoZ7pYbgVYA8u7TXfsMtzvKFzGcoEBZ1ygSYAmPUBUsWV2LZvK6hlYMp3FSCD6iN9Z1y30e6Q47BtOHusBvKt3kb1qf9d+7jfHQHptb2jbOnZ37cdramd+505ofcdDwJzY3LtItp281q4vNT81ct9GtsCwDBbM1o2+4xUjPEnT8HNHiQeFdLdL9pHDYLEX1UMbdssFJgH1xXOfQrA3HLhb5tKmWB3dTc0kFlYTFsaRJ0EiuvFxS45ZX6fpv7uvF1N4cvTe59vsd7nThAlwFCHdmacwASRdVci5YUqjgAxMpv10yv8AT2wzTkI7+dgLgCuCztctMMsZGzCYAzFQWk603dEbTYjaAa/ccnDqWViqIRkuKqhlZGAGa5qsGJOuk1Yt3CocU1wLcvELlWwcZeaySoRrjODbYAE3bPcEr3QY4C58cxunWdbL57J+v3Qo9PbctK6MIkOMwYBwt3MwMuo7KCZgqxnWmf7o4fE44XL7lLL3cz5O8yJ8kCFMwAo0HlXu2rDJtVw9mzaZmC9nYA7NO3tBVyhwAYFxWMgAtm3A0h6R6Ym4uXKbfxZGm9WbN6JIEMWEAndvrvxcM75XLl67eGWMxk349/uvy5eS1tW5nYLmtq+pjQqqD2m0fZTftPCycy3bZEcG+unTrVwSNs6/dKKbltQUeBmSWScrbxI3xXOF7EYgQRccg/hH668LktDaGAutdUgifXU7tXxbsKrXLWfRR3oksSePlXNwx+IH/Mf9I/XWYxeIb5bH1sfroL729ilcWLasGJxFpdDPpMBPvqyKpXqVwIOKdrkXGS2SGbXKxKCUndoSJ3wTzq6qKKKKKDnbpfj7r7UxT279+38bki3cZRFoC2NAfwZ86xvbZvWx3799z43HP/WKT48zjcUf/EXf8RqR7YZiFPNoj1x9c+yukciHG7WzPnYuxGsMcwH6RNNW29oC+05SD4fTSratjKoPM/NTRYSfOg3pdfsmt5zk35eE05bJtG1bZ2MZhqTvCgz7yBpvkAcDRgcKDv3aE+Wv0fNS/D4JsTdyCAluSxM5QwHGOC7h6iQCdKDLB7PuYoZrpNvDr6IytGgbUwIPowZOkgakqp8u7eTDs6YZc0N3WOhUAqy5jukMikacDoMxAR9Idrl4tJlUKAHKACYzREAR6THkMzcWaW3DYeTEDTnuXy4n7a1vHDfmpctFF/amIuHMbh4+iJ3yT3m5yZ5ya1BrvB3/AFD7qUm2q6trG8mNPMkCfDfXtrG2t0g+AK/THz107Yx3Vtwe2sQh1btNIh5DbiumYkbmYCDx8BSzE37F9WcDsrokskGGM8J1Q+Go95r21g0uiBv5bj645eI0pDjMAUIBMcFc7h+C3NPeN45HOXH8lxz9qHQwdNYBIOmZSAQdd4IIIPivCDSfaVzMysJgganeCshgfHMST66dLbG4OV9STrNx7jCALYExEFi28tKkTmisb2FDAFRC3dwPyLi6Ac947MnjmtHeTXJs99H9kNesrczWwGJUKcxac4tiQBpLEa7gCKW7BdsBtjCmVK3D2TMvout0QNeID5D60qP9E7xJFoXCgZiSSSFErqTB5SPOl3SfCspRu0DsAHzK0ldDEnerAiI8Kzu26dcsJjjMplL9PO/su3rL/krGfkW+iufOiuzbt/E2rNm4bb3TlzglYXexMETAUmOMCrp2ztN8T0duX7kZ3wxLRoCw0YgcJIJqmtmbOL2lIKbidXQEQTqQWBFfQ6PHu48o8fVZa7amWL6DJbbCvszGXib15sMzyUIKZ2dlKBSVHYuY1nKpB417082S2Hw6YjD7SxWIHbGxc7S8Wh1DTlIiINsqRrw10p06T7Hd/ufhcAQlkobtoB8r5m1e6zZpMKxPd3Zm36VsxuFwpKYIMLmFwIuYnFNnGa7dQEMvpTvcgnd3ssytYlvw23fr+evr/BdeZJr7/RUxvubgusxdwVbM5Lk5IyzO8AKBHIRWrat9rjvdeM7sXaBlBLGWMDQSST51ceE6PpcxLOdmWrdy3hZOGZ7RtPcdiLbDKTCwrjMygnKdNNa+6y8Jat4m6LKKiBsuRSNGVVFyF9JRnDRIAO8aEV6ePkxyy1J505fh5Y6tvuvDrIE7Lxf5I+4iucrCKcocsF4lQGI04AkA+2ukOsMTszF/kWPsE1zgFlQOZAr476Jxt7EwrAN8KYA/fJZBHkcRPtikt7BWFNvsrxuEkSCirHE7nbdp65O6NWfGSrsoOgMbqX7PVT2TLmnUPMekPvY4FWXfrM1NtXGyLZ6lU+OxB5KB7cp+irbqqepBe9jDyNse0N9VWtVZFFFFBzVjP+MxJ/r7v+I/28/OtW0EHLUe3j7/ALc6UYkfwvE/l7v+I/20rTtM/b2/UfZ5V0cjNts/Fr50y4LhTvtk/Fr5/bnTRg/ooH3DNlQtx3+YiP1ih8qX2bow+BdoHaORqRqoIOWPxgWE66Ow04t8Tb/NJ+f90Vo2zdPYBSSQCIBJgSZMDhJFWTdDVYU7+M/rHWfKD5xTuALVuf8AKSZgA+MEk7wF5kGm7C719ZPuWnXa1oxbA3d4+YCAfN769cx8PPll5R7EuzmTqR5BRyA3AVrsnXh7P8qfsPsdrlvujexn1Llj9o+6k+J2bbtSGvA3IUqiCQMxbMHbcpAAMCZzcIrGWOmpyy+DtsLCE6iVjXTh+EvLxHETw3SLEWBdtGQMw0aOehkeBBB86YdjY4KF9nzfWadtlX8xfkVX3Fx83zVvOTUscsN78mLD3CjTrKyrAMVLBFZgJXUTbW6n5tvlSi0hIvW8nZhgL1sBs4WG7MkNJmGysdZmzwiK07QMXXA52z/eWx8zMPOk+z8SzXe8zMTbuCWJY6WmjU/ij2V5c55erH0bbFwdoLmoR4cxp6QzEeXe/RI5GnrGsOyYAAaTpH+p3b/b4Re3fJZFGu+B+dp+yB51I7VwAAMZBETqeG/6ZrK1P9m4hn6KXCxki1eQcNEuuqjTkoA8qg/QLpTYwqX7WJtPdsX7YRxbIzCC0RLLoQ7aggiBFWZ0A2OMTsNsI7FQ7Yi2WXUibtyGHPgaj69RZ/p4/wDb/wD3V6ODk45hcc7racmFtlnsT7L6zcPbxT33w93s1tJYw1u3kJt21JLZpcDMxybpgKBwkp8R0/wTYliMG6YW5h2s3ERbdu4xdgxYZWAOiqNWB1PnjjOrfBYa72eJ2g2i5iqYdlMGYIY3GG8cjW7C9A9k3Lq2VxuJLuxUDIBqJkTkjga13dPv1v6s9vJpgvT7Av2wxGFxDo5shFVwSEw0G0LjlwWbtCzHfv3moJ0q2u2Ku3b7AA3GZ4HAHcs8YECeMVaT9SCSYxhA4TZk+Z7XWvF6jUkZsaxWdQLIBI4gHOY9cGunHy8GF3L+7N488tb9lk9J9nNicHiLCEBrtp0UncCykCfCYqg8T0OxmHg3bDALqSBKiNZzju8OddIAUg6QbO+E4a9YmO1tsgJ3AkEAmORivmvVHKOJssXcgSCdNR9dOOwdk4i4p7Oy75XB7oLakccoP3tOt/oLtK3cdDhrrBGIDIjMrgcVOhI8SBVv9U3Ra5gsMzXdLl/K5XUFQBorA+iwzGRr66mm7nuaauqbo7iMKl98QmQ3WXKpIJhAdTG6c27fpU+ooqsCiiig5wxQ/hmK/wDMXv8AEcbqS7Rb5h9vbSzHf8bih/X3v8R6RbQ+31+FdHIx7XPcXzpqwfCnTax7oprwu8UEk2ZazqE4kOo9ZED33BSO/a7WywG/LnH5gzn9UNW7ZV/Kd8FSGHH0d/ulvzRSnFDsr2ZNxIu251EEyVPPKwZCPDxpPAj2CO48jPtgfQPbUouWs9rTVlOYeIgBwPJVaOMNUcxFtbVwhZ7NtUn70/IJ5runwB4ilmF2jlgE6cDu8eG4j7cK+jx5TW3k5Mbt792DbRkHotvIMEeo+fv86jrvrMn2U/47DJc725jxWNfFlJA81InlSAbH/D9i6+9gPfXDO7rrx4zGPMHdMiN/yR4/bWpZss5LZOmsAHwWdfCWZiPAimbBYJE1PnJknwJ3AeA8JJGlbsbjye6u8/byEfbfD2TXnw04i7mcnmw9lv4w+9EH5wrXs/Qux3Lbc+0dmPe9YFwE01nd+LMlj4uwBHHKi86yxJyYePlXjMfgJIH6TE/orXmyu67SajfsdFCholj7hJ3e/Wl7ax9j9v8AKkmFWFA5CPDxO/6KUodR7airw6of5NU87t//ABbg+ippUP6pbRXZdiQQWa6+ojRr10qfUVIPnVd7X618YL91bUG2HYJGX0QSF3224RXN0h76yVPw7RMwNtA3eC5QS3eg+l6hSDYKsNo4YFO6Lnp5hq0FSMm8Tq0+NRDH9NruIu9rdWWyhfSEwJ5Io48qytdLWS6l1LfeQyCW4xEwVM86K6VpPj8bbs22u3WCIglmO4D7cKpmz1pY0o7AJKAGGAMiddyrzqwemT271jCO5/g737TXORRgxXN+DmKTQNZ6UbQxs/c/Di1Z3C/fgFvFQdFHk/qFef7KbQuwb20rg5i3nHvtvaH6tTu2oAgAADQAaAeAHCtmlBAh0BvjVdp4oHnnun3dtWTbK23hu9ZxdvFKP+XeUKT6mEH2tU8mjNQRfo10yF+58GxFpsNih/y31DxvNtoE6awdY576lVRHp9hkZLD7r637QskelJcSBxIyyY8Kl1AUUUUHOu1NMfi//MXf22pt2kdadunKthdqX1ugW0usbtt2khw/eMRyYsDy85qK7T2wk91g3iJFdI5Un2kdBTfZWDRitoBuA9ta7eLE71+3nQOuG01FLTcDJ2Z0gzbJ+STvU8QpAHqgHgaZl2gBxT7edevtEHinl/rQP+Jwgxid0BcQpCsohcxiFKiYkwAQIXdqJWoszMhhh7pB+3tpfbxYbc0NESDrB0I03jU+3hW3HY1rrs945naJYgawAo3ADQADQRpWsc7iWSm1L3IkervD36+81uXEnn+r/nXjYRDrEeo158CXm3trf4kZ7WVzE8zH430KNfnFK9lbNuYgkL3E+W76TxhuQ/BGvurbsz4JbGa5bZ2BAC5tOZY93SIiJMyZAgThc2m4t9nnZbUki3M750neRqfDUnSazc7fRZJC/GNaPdB/g9qJf5Tt3pW2YB74KzpplHALLM2IN68WaNI0G5QNFUDgAB7hSHGY8toIAG4DcPVWvB4rIZBFYaSe15+FZC6ZCqCzEgKo7xJJhQBxJJAHGmUbX/Fq2OqTobfuXkx2Ktm1bt96yjDK1xiCA5U6hADI4kwdw1lpJtNgl/AbCAJy37VgTubKxOo5GM0eVc83UrpfrJ/kzFfk/pWub76ifIfNWHQmUQKM8a1k1ajQPmxzJy6RcUqZ4SDu8d1WdsDbT3dhraKC7ce58EtIdBoBkmNe6omd8gVVOzGgp9uVWf1f4O6dki7ZXNcs4tr6J9+FUKyDxKlvOgdsLgtsYBFCG3jLYAlNzJzCyQSBpEFvBRQetAW/+JwWJsnkRH+IENSfYHSrDYoDs7gD8bb91weIg+l6xIp8zVRX97rYwYiLd5iRIANo7+cXTB8K8XptjsR3cHs65ruuXpC+uSFX9erAEchWN6+FBZiFUbyxAA9ZO6grpsNjcJi8Pi8cyX1Y9k2WYw5uEBWUQBHPTid5AJs2oTj9rJtC6mEw57RFdLl+6B3FW2wYKp+UWZQJ3b4nWJtUBRRRQJNpbLsYhcl+zburvy3EDgHmAwMGmf8A2D2Z/QMN/ZL9VSOmDpr0nTZ+HN5lLsTlRBpmYydT8kQCSaDOx0N2cno4HCj/ANFCfaVrVjMJsuzpdt4K34OtpT7CKobpB05xmKJN3EMqHdatSiAciAZb84mmzBYO44+LssRzPdHkdx9tBfrbQ2IP6D+hbPzLWyxiNiuYU7PJ5RZB9hFUYdi3/wCat+bj6DWLbNujfhwfFLi/NrQdEr0ewDrphcKynlatkH9WoZt/qcwl0lsNcfDMfk/xtr9BjI8mgcqqGzj7mHbNba9YfmCUPmV4esVY3QbrSum6mHxkXFchVvAAMCTAzgaMJIEgAjjNDRhx3UztBT3Gwt0cCHe236JWB7aSW+qHah327C+LXpH6oJroDabwo9f0GmwXjzPtq7TUVdsrqRxBj4RirVscRYQ3D5O+WD5Gp/sLqz2bhlj4Ot9jvfEgXifUGGVfzQKeLDKfScjw1+evLzKPRcn2iKmzUeDofs7+gYP/ANva/dr0dEtn/wBBwn9hb/drUbx5n20pv7Vt4fCviLzQlsMzHedDuHMkwAOJIordZ2VhbHeSzYtAa5lREjxkARWm30mwTNkGLwxbkLyE+zNXOPSnpTi9qXu/myE/FYddVQcJHy2jex8YgaVqToviDoOyLfzYuoX9WWdT4VdJt0zt3Zq4rDXbBaBdQrmGsTuIHGN9cwbRwrIxU71JQ+u2cpqSdA+m1/Z10Wrpc4acr22mbXDNbB1WN5UaHXSdak3TTq8xV/EXr2FW3ctXmF1O+FMsBn3wILSwIPGoqpXatZPCppc6rdqf0YeV21+/WK9Vm1B/3Yf2tr9+gYLBygtIhVn5/rFdHdANifBMDZsky0Z2MR3n7xHlMeVVTsbqux7XLYvW0S3nU3Cbit3AQWACkySJp+6TdaNxMW1rDdn2VslGZ1LZmWQ0d4QoIgc9TyoJl0n6G4HEzcuqLTnfdRhbJO4FplWO7VgTUbPQ3E2j/B9sMq8FcnT2XMv6tVj0i2jiL7Z2xTNnJJWO6NZAAJMAE6DhTSEf+dP6K/VQXS2wdo3CFXayKY1CMWYkb2gEEeoVuw3ViHIbGYy/iSNYkqPazOw8iKpbAG6ryuJNsgGGCgEcNCCOdS7ZnWPjcMEtm8uIVTJNxe+wnVcwPKYJ58aC8dmbMtYdBbs21RBwUbzzJ3sfE60rrRgcUt22l1DKOodTzDAEH2Gt9AUUUUBVO9fVw58MJlQryoO4koQ0eOX3Grirn3rixh+6FwTKZUGmsFRrHmTP+VAxbAs4PRmuxc49oraHwgEedTnZex7N3VcTaufivmqsLQB194+0Vm6cdD6x9IIqC6B0QRuJ8prXiOhiAasF8W099Uv2hG4gedz6HrFmHEKfJj+05oLC2zs/B2wVuYywfAPnI8lmKgG0blhXK4di675ggA6g5Z1O/l7aROg9f25Vh2gB+j66o6X25jLi7I7ZXm4MNnD6HvCyWzayDrrrVObC6Q7RxFkXW2oLUs6w1q0YKLnEnTeJ4bgd9T/Z+K7To1MyRZvKfzReAHsiq62PgHFq0VWyWFuwDF2GIdzcRWHYkqGz94TqAsHTXjzcnZHTiw7qd/h20M+Q7XHpFdLFomdcsAHWVS6fDIBrmrC5tHaWUFdqlmK2zBsWlANwqCGY6KVDgwdTwFNiWj2l25ksNmW2+RmZZ+Diy8ueyGYuL1uVMCW1BK0qs5yptZEZl7SyWd3zlme2zMT8HBYAuiyAAQSToNPN+Pn8/wBnb8LH5EHSHpTtTDBGGP7VHLQy27UQNU1AIlkho4Tx31PuuXHMNl4e2DpdvjN4hBceP0gp8qgXS5bj4a4TatLKpe7rl3UO2o/iwCB3Rv0051M+ur+T8H+Xb9i5Xq4M7njuuPLh23SM9XOzwbdy78ostsHkGn91vdyq1LHRjDXrZtlTJEBpJ18Ru91U10C26totZuGFcgqeTCII5kHhxDNxibNw3SHIpyuhMaENMeOSMw9RFd3JX/TfCdy3db+MV2sOeLhQGRieJAJWeMVcXVNjWu7Kw5bUqGt+Vt2Rf1QB5VSPTPbCXCtm22ZUJZm3gu2mnqAirb6o8YtrY1u40wr3ZjU/xjAe80pFhUVHF6X2p1RwOehPsn6afMHi0uoHQyp47t2/fWVMHTvpSuBsBwydqx7ltgTnj0tzDKBI7x0G7eRXM4vtcdiZJZiTHMkk1O+vnCOm0Eukns7tkZTOk2yQ6jlGZTH4dV9gsQR3phoJ+mRNAquBljePXPhumlqhCmbvAce9MHl4zTecYXMsST48vIAc6yZwalWXT1AzGIJ8BNeXhk4MNOP+de2rhQkiQQNPd4cppLi8aXPeJJ3a+6ffVReXU70y7ZEwd021Nu0q2QAczhBDZmLRmgA5QBpJ9VpVyl1dYM3tpYNASPjlckGDFqbjeqQhHnXVtAUUUUBXOnWE0bTxQZA65wCCSCAVVpRgdDJnxkiui654601UbTvkHRivkQiqf2aCPYTZNq7JS4LbZoC3G7J4gRLDukySN3CeMVl9w8QQcmdwDE5VfiV0KkSJU60lFereYagkbj3SRrz0oEpsXIzENlJjN2TZZ1ETmiZB08DW63srEMSBbuyN47Eqdd3pPxrx20iXgEkDOYBB3gRodTr40PdbUZrhGo1uMdw000oNF7Z7KwW4eznWbjACJAOiCZ1mOQNa+wTLCSxIEsQUVTIJyje/yl18DWYUDcqjyn3nWhnjU/5mgtvoyI6NXvVifcLo+iq76HdX2NxT2zcS7Zw7iTdJAMZTkyqTLA90DSINWH0Zj/Zu/rr/AAjN4Eo5A/RK08dWe2A2z8LZuyt4KECkH0VPcMxAlAKsxt9Im9GrCdTuGCur4nEM5Mi4rZSJ9IEahpgTI4CmDbnU3iVhsLiu0gai6xRhpHdZQRugax66sPa3SvscQcOtnMxXOCWygjQbo4SOPGkeJ6RYq4CiraTN3Z7xYZtNNYnWs6i7c333cBkLkgaEBiV7ugjWCNNKvDro/k/B/l2/YuU23OrOxYDz3jlMZhmB04SYB8YBFOHXMf8Ad2C/Lt+xcqinlSeXmQvvJreXeMpud3l2oI9maK1WrkHeB61zD2Qa2DEj75P7P/8AmtMsSI5eRB+art6BYoJsK2sTnu3F9UXGaf1apK64O4g+oR7oFX71S4IXtiohAJz3ss8GzvB8N9SrCR11A5n6dN9YFzpqdN2u71cq821gzBW6jDJ32BB0C94kxvXQ1I+r6/hcRYS4tpg5BYdqhXMAxGa3OhUGBI1GkxIqKjPXVhWu7Kw11xLpdUsTvh0dfe3ZmPVVLYUCRInhExObTfBjfyrq/pRsRMbhbuGcwLiwG35WBDIwHGGAMcYrmjb3RTFYO61m9acxEXER2tuNDKtl9em8EUDLjsP3hAygjdmzbjxMDmNK0fB/GnO5sy8CAtm434ltm+YV4+zcQN+GxA9dm4P+mgQ4S2A4zQRBkE5R7RqNazxaLnGVQojcGLj2kTxpRawlwmDauAHibbgc+VKF2JiLtwJYsXrrHQZbbRJjeYhR4mAKCaf/AI/7PzbQvXYkWrJE8muMoUjl3VuD210FUV6u+hy7Nw5t5+0u3Gz3HAygmICgSe6o9pJOkxUqoCiiigK5z60kjaV/kSDHI5V1FdGVz51qgXNo3woh0Kgj78FEYEfhDNEcQBGs0EPtrHDz4fb116SOfund5ijD3mUkAkEbweHgQd1ZXsVzRD4gRQaGujx4+/zrx3B4nj8md/51a2vL977zQb6/ej2k0GFy5y+30++tIOvj9t9ZtdngB6hXuHtlpjcN7H0R6zz8BrQW10bXL0cxHHMb5/uyPopD0UxR+C4e6PSVU18VEfOtOmynX/Zu5AgfHgTvMLcBPmQTHDdUU6vcQDggJ9FmXzzB9fJq9vQ347L7xx5/8dpl04KjFYO+PRuIUnwI7TX+zUedLNm2s15PA5j+aJHvioX0j6RoRZsF0+KPahjcWIFxM1uDuJQtGvlW610/t2yxRS7FIUqrNEkSRCwd0b99eXkw7crj8nTG7m1g7RvTKjcPnqH9cTTs3An+ub9i5UQx/WLd1At3eIOgtEc9e981Szre/kvA/l2/YuVhpUaXWUypIPgSPmrYMU/37/pN9daBWQFaZZXHJ1JJPiZPtNdF9R/8k2vyl3/EauczVl4HauPs7EwVvA6fCMRdss6j4xWZ/iwh3JMPLcIERUqxc/SDbOCtL2WLvWUW6CpS6yjOpBDSp+TEgndUO6C4/CvijhMAzvhsMTeV96ILodHw6s3eZc+W4p11D6wophwfUlcYi5icaC7auFtm4Z4xcd5b1lfKku1NsXMAzbO2LZdltFfhOKS2b9w3DvBYKUECAZHEgBYqKuvGYu3aQ3LrrbRdSzsFUesnQVVfSbrhh2t4C2lwLvvXZyN+TQEFh+ESPAEa1BukOz9tYtbdzE4fFXkSVT4rUGZLG0gDTqBmy7hE6VHcRZu2GAv2rtkncLttrc+rOBNBN7nW3tP/AMKP/Rb/AOWtH/bTtFTquEb123HzXahBx8GFgk6RlDHyBBM+qleK2Njuxa++HvrZUSz3QbS66CO0IzSSAAAZ3Cgt/oL1vLi76YbE2RZuXDCOjZrbMdykEShO4b5PKrSrj/Z142rtu8sZrTrcUHdNshxPhIFdcbPxPa2rd0CM6K8cswBj30CiiiigKKKKArnrrTT/AHpifHsz/dWq6Frn/rXX/ed/xFs/3aD6KCO4babqMrpavpwW8uYj8VwRcT81q9vNg334e/aP9VfDr+jdQn9akZH2NHt8jPHl9taDS2Hw5O++B6kJ+cUoTD4KNfhhbw7JB7Yb5q0Hdx3chyH29/CshM/K38o+V9vdQamW3Mpagf1jm5y5BVO/iKwdyYkzA0G4D1AaL5VlG7y/6K1mguroHhLFzYSW8SzC3ce8py+kZe6sCAeE02f9muxIjtMXG+Mxj1x2dOvQexOycEDuzXjB8btyPpp/+Cr96PZQQW51b7FB0+Gt4hhHvUUpw/QjZQGUXdo21A0HaELv3AKp4kn21MPgq8hWJwq8hRUWfoXsogqcVtAqd4N1yDMzIya7z7aRddQtDZuDFliyDEECd/oXJBkDjUzODT70eysMV0QsbQwjWLpZQt7OjWyAysEUGJBBBDEEEcecURzSDWQNXVtTqbwGHtPeu4zErbQSxyo0DduCEnyqKHYPR8f/ALPF/wBgf/hrclvpGUBmugeqjZqYnYYs3B3Xa6um9TnaGU8GBgg8CBVfLsDYB3bTxf8AYkfPZqxcH0q2fsrD4XD2FvXbb2+2VgASVuMT2j5iurHMYA0jhpUyxs9YsQLba7Xwk4bFbQxC2vRF0h2VxJgrctg3GJESm8VIug/TbZOzMKMP8KuXWLl3ZcPcQZmgEBWEgAAczv8AVVpJj7V3DC+Ie09vtBI9JSM2oPhzqN3+r3ZeKth/gq284zTaJtxPgpCnzFZU97D6U4PF/wDD4i3cMTlDQ4Hihhh5inLFYVLilLiK6nerqGU+sHQ1W+M6lcIe9Zv4i241Ukq4B4GMob2MKR47Y3STDWyljGJiEEBT3TeGo3dqmvjmdtJoJlt3aGA2RYN7sbdoE5VSzbVWuMZOVQABuB1OgqhOm3TTEbSuA3fi7KGbdlTIU7s7GBneNJiANwEmZhZ6vtr44/wu+6KuqnEv2pDEAtktoxVVmRMroBpTvheo21E3sZdZv6tFtj2NnPvoKWdtOdda9HrLJhcOjiHWzbVhyIRQR7QaiPRnqmwOEureJu37iGU7YrlQjcwVVAJHDNMEAiDU+oCiiigKKKKAqg+t1SNpXJ4ohHqyx84NX5VIddSgY1D/AFS/O1BAR9o+qsfZ81ZLrugj7eyvPb+19v8AQUGuPm5+AoI14b+JnieVB+2ngKBv8+C+JoNZ+36ta/8AOs2+3HgKwMTFBfXQq2RsnBaR6f6zXSD56GnvLSTYChdl4Llktn9JT9dLc3qorDLXhWtsVi1BqK07dH1i2345+Zaa832mnbYR+LJ/CP1UDP1oMPuXixOptmPHVa5rweEe40IpYxMAToN599dH9I7Hwm1dtlhrbKkMMygtrBAgwNOMmN9Uz0W2fexOa1nsWRbUZjdtAvlIYSO7LQF4kasvl6OHLUrnlPKL4mwyMVdSrDeDoRIkaeoipn00BTB7KuAHvYHLoP5sKQP72nTE9EM6FfhljMUDGMMqfK1gqZGmUz4eJpy6YYbscLsm0SH7KbZK+i2VbYkeBisdTzTs3PZvhxvcstcF2OA7FR/F4fsx+bbyj5qUdH/+GtfiCkXTPbtnB4Vrl7Nlf4oZRPecNE8hodaTdAOkVnF4c9lm+JPZtmEawGBEHUQRXISakd7aKjQSx8N3t+qmjauPbtmSe6sCOGoB+mvLeJ8BV0lpcNovO5Y5a/PNbfukfvP1v8qRi4p3iti5edXSbLLe0R8oEe8VsOOt/fe4/VTc7AUkxD00bSRGBEgyK9po6P35DIeBkeo/5j3071loUUUUBVM9eOHIxFl+DW481Yz+0Kuaql69ZBwumhFzXxHZ6ec+6gqW3Wbuf9RP231iooubqDD4QeQ94+Y8tKyLSPsefP1mtNu0WYKokncJA3Ak6kxuFbrltlJVhDDQjl7KBNdcnefq9nmaLXzVvbDr2ec3VzHdbAk74OY/J0k+OkE7q8tMcjAejOpA9Jo0Ucz9ZoOmcCww+Bw6EZotInsQSfcaphcFYbMzKzszuxJfL6TM0ASdIIFXPtxCLNtOOU+0LH01RR2tibQCA4UiNPigxMyZLMCT7azlJfV04+S4Xc/j+T1stbNrE2Gw/aK2YZwHMMpBlDoJ1I819j1tba1yWyFFPePfmNAxC6EakgD6Kimw8dev4myrmxGeBkti224neoE7uMxrSjaG38Oruj5wyMVPcnVSQdT4ikkicmeWV3f+/wBJDgdqvIkiQRqAVmQDuJPiKsTH7RjCsVWNezjlOkiKpvC9IMMSqgtmYhR3CNWIAEjxIqz9o3guGy/fX8o/QL/9Jpl4nhmHLA3jkiaiG3djdtiDeLEFLZVgB6aswME79Cs+2pbgV7lILFvNduDhlE+rvVnPLLGbx9SSW+UVGy5YEEzuEDfMaUn6yX7K1gbVwqAjNliZ7uTfv4VOsDYS2PixJ3Fz745Cq566v+5/jv8AMlayx75q0xvbdw29aPSR8TiPgs/E2TqODXI1Y88oMDxzc609WXSI4PGIk/E32Fu4OAZjlR/WGIBP3pPIRE9s3j8KxObf292f7RqSXbxC930uEc+EedaR0TjWm/dP4RHs0+it1s1htO3lvv4kH2gE++a8tmqhYjVuVqSqa3KaqNl46UnYyK3tqKTUHuBv9m4YcdD6j/pUqqHKpLADUk8KmNSrBRRRUUUx9MOjqY6x2TRmU57bESFYSNRxUgkEcj6qfKKLLry5hxmyDhbq2cXba3cDGSRKusHvIywSJjUA79YIim3EAZmy7pMb93DUgHdzFdS7S2ZZxCdnftJcT711DCeYncfEVBdq9UGDeTZuXbPgG7Rf15b30RSVi0QVuG25tBwGYKYIkZkzbpIMRPGs8VhbqLmupcSTE3AVk6nXNqToatBeqfF21a3axdjIzZpa24ae5yaPkKN26edSHCdX10gG9jIbf8RZQRG7KbvacANYn56CgLhA3mBVm9WnQO9iLtvGYtWSzbytatsMrXCkZGK/JQZQddWgcN9kbA6v9n4Rg9uwGuDUXLp7Rgea5tEP4oFSigj3Sa4cyAfeNHrOX6qqG70R2gYGfDABQoEtuGmum/xq7Ns7NN7KVIBWd+4zH1Cmxuj93nb9p/dqKrHYXRrF2b1t7tywUVsxyk5vRZe6THOtw2RjVe4Ut4B0Z3YG6HLw7F+9lYSdedWYnRjQTcE8e7Ps1rG70YMd1xPIrA9oJp5PCrl6PYvuL2GBVA6MTbNwuArrcOUuTrI4ndI0qeY1M9oaGBiATG/WzcGg4wSDTivR27zt+0/u044TYii1kua9/P3SRBjKNRBOnz1M5bKTUqLWcdeGmdY8bTfvUowTwWZmJY8VUqAB6yeZqS/cOzyP6R+ushsWz96f0m+uvPePlvu6d2HyNCYiQIB+qq467EhcHO/O/wAyVbV/ZEA9iQjHi0uPXBO/zqNdMuroY4WYvm21tizOydobkxpGdQg04V6Zv3cqqPrX2E9nE/CssWsV3xG5XGjoTzMZ/HM3KkfVlsFsbtCysHs7TC9dPAKhBVT+MwAjlm5V0P0p6OW8Zg7uEOVA47rZc+RgZDgSNQfEUh6vOhy7Mw7We0F12cu1zJkJkABYzEkADSTxNJvXkLOkOAZitxATpDAb+YMe33UzgEaEEHx0qa1i6A7wD69aqaRNGrarU+3Nm2j8mPVp82lJrmxh8lj5iauzRBm0NJXene3shvlMI/B3+/dS/D4G2mqqJ57z7TTZo27EwLhjccRpAB36xqeW6nqiiooooooCiiigKKKKAooooCiiigKKKKAooooCiiigKKKKAooooCiiigKKKKAooooCiiigKKKKAooooP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIVFRUVFhgXFxUWFRcVFxcXFxcWFxcXFxUaHSggGRolHRUWITEhJSkrLi4uGB8zODMtNygtLisBCgoKDQ0NFQ8PFS0ZFRotKysrKystKy03KystLS0rKzcrKzc3LSsrKysrKysvKzArLTArKys3Ny03KystKzcrK//AABEIAMoA+gMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUIBgf/xABOEAABAwEEBQgECQgKAQUAAAABAAIRAwQSITEFQVFhgQYTIjJxkaHwB7HB0RQjQlJygpKy4TNTYnN0g5PxFSQlNDVDVLPC0mRElMPE4v/EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAIREBAQACAQIHAAAAAAAAAAAAAAECAxExQQQSFCIjMnH/2gAMAwEAAhEDEQA/APcUEEEBIIIIAggggCNEjQBBBBAEEEEAQQQQBJqVA0EuIAGJJMADaSg9wAJJgASScgFm7l/y4qW6u4B5Fma6KdMEgOAOFR41uOeOWW0kPda/LPR7DBtlE/ReH/dlcrpz0m0mPAs4dWbrcCKYGUQHNJd8rUMhmvJNGMDlcWewXsGkE7AQT3DFB3jPSiYgUZO3F3h0U2fSTadVJsfs7j/9gLkf6KOtj/sOPiGpwaO3O/h1P+qI62n6TKw69EHspFv/AMzkVq9KRiW0cfm3424zdw1a9S5I6O3OP7up/wBUh2iXfMcO1rm+sIPSdBekayPZ8fU5p+EtcC4bw17AQQDrMHcui0dykslc3aVppPccmB4Dj2NOJ7l4NVsrcgQSNhBPEArnNIVLrsNXkIrWKC8t9D/LWpXmx2h5c9rb1Ko4y5zR1mOPynAYg5kTOS9SQBBBBAEEEEAQQQQBGiQCA0SNBAEEEEBI0EEAQQQQBBBBAEEEEHB+mLT/AMGsJpNMVLTNMbRTzqu7iG/XWc6rl2fpS5Q/C7dULTNOl8VT2ENJvO+s6TOy6uV0ZSD61NriAC8XicBdBl3gCg6mx2H4O1sw6pAJnJpiYG8bTsXe2bQVWto74QKtTnrpe1nRuFodlF2ZuAnPNcFpbSdMkkPBOOS72zekWxUqlmpU6rjZ6dFzKjubqCH9C50S28cGEYD5aIRauTbBb6NlbUtDgaXOVYqNnMgAZACQNpxCh2Pk6ytStlVj7Qebqup2dvOCXOkNbfMEEXnjEEYAorNy8sjbbbbWajsaYZZhcf0rrI2dAFzGnpRml8kuXdistms9I1CXmo51oPNvNwFtRwxu9M3rg6M60FI3kxbnVzZ241GtDnxVBawOmA504E53c4Mpm26At1GvToOnnKv5Mh4LHwOlDzs1zGY2q70JytsAFvo1LQ9jbRUqFlfm6jnFlQRiLpcHATmNak1eXlgdbbOS9zbPZabw1/NvJfUfcbgwAuADW5kDXuQUOmNEaUoUXVa17m2EB01GvHSIANySCJIGXvXFWppdL8MIkARnhIAwGrAbV3HKDljRq2B1FtVz61a0Oq1QWvAYwve9rQ5wgx8WIGxcXZyHS2R0mkDtHSHiAgXoLSTrPXp16fWpuDhvjNp3ESDuJWptG2xlakytTMsqMa9p3OEid6yVlivbvQhygv0X2N56VI36e+m49ID6LzP1wivT4QRoICQhGggJBGggJBBBAaJGggJBI55sxeEnVInuR1KrWiXEAbSYHegUgvP+VXLetTrmnZhSLGNbeqOcHX3unosF4ABoAk4yXgYQZo6fpJtc/wCThjJbcH2nOAncg9JtnKGyUiW1LVRY5uBDqjQQdhE4JgcrrB/rKH8VvvXkWkNNm1WIVXQDz1pBjBpmq6oCN0VG9xXBW+u2Xi8OrHHDBBpwcqbEcrVRPY8bY9adPKKyxPPsjHXsxKyvTqBxIaQ6Wuyxzez3LuHUz8H6pJLqhyOuzho8cEHstflno9nXtlFv0ngetU/LvlpRpaOfVs1dlR1YOpUX03BwvmA4hwwBY0l0HYs0VtHPa6XNDY3tnuBlO0bU8UxSvnmw9zw3UHPDGudvJFNvcgU93nYoVa0Y4HipTqZLHEZCB36vAqJ8GKBq/vQvb078FKHwUoGr6F9OfBXIfBXIG76F8pfwZyHwd2xAi+dqUyu4EEEyMUfwd2xFzDtiC1oWgPE69YV3yT066xWqlXaCQx3SaD1mHB7dmIJz1wuUszXNcDGE47xrVraad1xHEHaCJB7iEGurPXa9rXsN5rgHNIyIIkEcCnF436J/SJSp0m2K1vFO6Yo1XGGFpM8293ySDkThEDCBPsbXAiQZBQGggggCJGggJGiXl/pT9JXwW9ZLIQbREVKmBFGRkBkakY7G65yQdrprlPRoONMTVrAXjSp3Za359V7iGUmb3ETqBOC8S5TcvLTa7Qbzmso0y5radCo5zHgkC89x6NU4YOuiAcNq4Rj3PLi5znF5vPLnEl5mbziesczJU8NwgILyhp+m2pT5qixrw4fHuLi9k4G44EOb9riFKrabrWyoDaKrhH+W5xAYMoJJk9uvNclSo1AereG7PAap/BdNoupUaBFOo7dDfa6ER0Fhr2RpDedplxyY0hx7hlxUq12Gi1/wipVpMYGXeb5wNviQZcYJvA4AAYY4mVWWyzVazP7k2ZxFV9MB2EfILiDliIOGa5ejyfrg/wBacKNJmJdevuj5lNpy45b0EnSNus3OPqsph1Jhawiq3Co5xcQGgHU3pcTgraw1rLVxs1BrC3rtbSbDRGd9reqcc1wWl7S1z2sphzaTCbjXOLjJgF7ic3GB2AADJW9hdUp3qAcAHXah4MmeABPBB2lna9w6N4idTsI3Yqq0vWuSHCDvEKjdawD+Ta7Y57ql/t6LwB3Hij0hbHGi68ZaB0bxktcCMA6MZkDfebrAjMyl6LZYpdIV7xhRWomNJMqy0JZw6recOjTF92+71W8XQO9aEu0WcsYylGIF5/03wY2dFt0d6jGidinOeXFzjnm44ZnVvO7ciaJyx9UbZ1DeiIJonYiNNWApbBf3jot+2QZ4AjejbZKhOBjcxsn7Rk90IK4UydXgiLCrB2igZvQSBeIe+8QBmSCSQFGbZ6BBipRwziT/AMceCBgUzsRGnuTwsNJzOcBploMXuriIJHSA+cO9JFjObCY2tdfb4EhA3zaHNHYja94zhw+yfDDwCfp1GnDXsIg+48EDHNJ20AlgOtvRPZm3uxHcnW4mACSdQEzwCNhBwnA4E7OG4+pBXtC6vkhy0tdhhtKpepD/ACakup/VxlmvqkDaCuWDSHQcwcVMpsnFB79yb9JdktMNqn4PVPyah6BP6NXAbuldPau2BWUGq/5O8srXYoFKpepj/Jf0qfATLPqkcUVpFBUXI/lNTt9AVWAscOjUpkyWOzz+U05h2vcQQL1ByvpI5UfALG6o2OeqHm6IOPTIJLiNjQC7eQBrWX7RULnEkkkkkkmSSTJJJzJMmd69N9OOkXVre2i0y2z0w2JAipVh7pn9Hml59Z9GOJxjv/AoE2NqsqFKfPcrbRWhGOAPOAHWLlaps1tDQrGpZLJT61UzsDA378lYuyR1w0Z59FdZaYByVxZrRA+SOKiG22RuQB7XE+Ex4I28pqTPybaTTtDRJ7lzu+do9E8Dl3ykXlOpUPVkjcDG7pQqLTejXVOtUYz6Ti7wYHKLb+Vz4xcewCFzlv5QOdlh25qefZemPDXp/D4ffPn8LtmiqLDLqznRqawN9bnT3IrHbAawdBIALHxiAIc2cNzj3Ln7TaXOOJTdGq5hkFdcZePdXl25a7fjx4kemUdAOqEOptvNIzbBaR9InDiqvTYoNqsokhzGy6oaZBBJuw0HWOiOlrIMZSuX/pogdVs7xPgo3wxznEnX7Ex1zFi5WuotHNGbjQBq3oUqYp0gIxqG+foiQwfePEKt0bU5xzaYwvHE7GgS53AAlXBZzjy67gSbrdV1ouiY+QAAN+Q1kbYQjZnHpNa0lwhocCTOALwMoECS4aoBkkK2stiN0NcQQ2MMmA4AOIPWdhmZOyMktwFJpeZOIBIEuc7IADIDUNQ8E9aKIYQ60saGtbAoXr0vON98ZQMI62UkQgQA4kinR50Ndde4vDGCRIg68Y9yYtNnDYNW11A/GadO4GNBOAHRwd+ld7FEt2mXuF1vxbBk1uHj53yqp1VBY1jZBF2zNN0QCZk73Yw49rUK+kGuIcaFMkQAS2nhGXyFVX0YlBZ1tNB7g1wktHV1CYJ+TEpgMoF16HskyWtc5rJ2w32QogZjOEkRMY96Mg7EE9tleWk321GtBN6C92GQcQ6W7JPim6tmjAtg4GDiMcocOi7IwRnBhQ6dQtMgkEaxgRxUsW28IqDiMAdfSaPWPFAzWpOwiHRm10wRgYJzjAYeKdaABAjWcBHAeA4JVZwLhGRGZjA6sRgQfOxNHd3IBaackOGvA9o/CPFX3JGwU61cUqpeA5roLCAbwaXDMGRDTxIVRQM9HbiO0eSFLsFtdSe19N11zTgRqwjXuJQduzkTZiWtNapfdUbSu36bTebJrkNuHJgvNaSMC0ybwCpdOcnKdKgytTdUN5rKjhUu4Mql4aOj8thawO1E1BEJGkOUlqDGjn3w8PGAGN5sOl0TMCA6ZAwBCr6/KW012EVKznseQ5wLQJLYAMQI6oyzgHFB0voo0oaNvZTJ6Noa6mdl4AvYTvlpaPple7rL9K0Gi6lXBg06jKg+o4O9i0+EVl/lxVLtKWycfj3DDY0ho8AAo1AYa487Dn7E/wAsx/als/aKniU3Qbh+B8nV3ogqrSCM4mRqmc8R642bEkl+PScYwnGOGEAYa51YBS2Mg7McTskj5W3BEaI19GMSTJgbBEdL9HDfkUEJzHagXwcy3o8S3E4iMI1qDab4kEjZAgRwGG3uVq+hIEicMsZBxmcdgnioVrZE4GYGQIwxkkkDHKd/FFU1onXPEyoTyp1rd5KrwJKAmtSyxKa1KKCGUtqTrTjGkkACScANpQdLyZssU6lUg9I822M4kF8bybjeJ2FdNRoCm2XkNJiTkBsa3Y0CfXiZR6I0fda1vyaIugx1qhxqO4XiBvc8Jo1Q+q2qBNKiamLhNN74LWiPlEYvO4ARJxIRTqhtNtarJqFxdTpzDGAYU33Tm6OkCcg4HEkTRW61l5LnGfP4pekbYXuLiTjt9qqXvkoHHVJRBHZ6JcYHE7FYU6YbkMdpQRadBx1d6cFAjWE+5xhxGYBiQDjG/BRbHXc4Envyn2Qgc5uEC2EurUBywAwHDdtjWZTcoEOCaKfcE0QgXQrlpkFOtEAknAuw4yfJ398RwhO0nTLdqCUBrGaOqIduOI46uBkcFfcldI2SjUqNtdF9ZjmOaRT6JDjF3NwBBE4h2BIwwCprUwXZGQMjsOB7jHeUFtZYfRc3WMR7VSEwVM0Rabrh5zTelqFyoQMjl2IJGnhFER+bH3cVqGl1R2BZc08fif3f/Faio9Udg9SKy9yw/wATtv7RU+8UKAwn+U560XK8/wBp2z9pq+Dyl2QefWiJoGAz1Rn2yNkwO7vaFPKPOMjsy8dRTkYeTlGGvBE1h9fmeHggjuAGG0gapOcnfMk7MVU29wGzDDAa88/w9Su6uRxjGD4R6h3cVRaQx9xnDFBRWurqTbGorT1ktgwRRsajecPOv2pbZ2Juv1Sdp9WCCI1XnJaz3q98iRSaakRMuGFNvaXlvcqVi7XkFZLwnO9WEj9Ggw1Z+2WdyDpNIPFnoMaQS4uayBgXueRePa4l2I2rn7eDRpMs5Ilt4uu9UOc4ucG7g4x9TerflBUD7RTokgNaznnTruODixonNwYB2TvXM6TrkudO3x/HE8URXWmpOCbpMLjA1pLlNsFOBe24cPx9iCU1oaIHntQlE5IcgNyIlE5IKAy5JlJvIkCijzSYRhACEzkVKY2U1aWRB4IJBf0WuAxLgDllDo7NY7lYWcAtIOyeBwd4GeCrLJUwduaXDGCHAEtIOoggKfos9SdwOyCPcZQRaYLXQcwYPAq10mL1Jj9YwPBR61iLnzfY2db7wBcIDsWgwZBOKdqksplj4IOLXMcHtnfBw4hA3ps/Efu/+K1JR6o7B6llzSw+KA/RHqhab0S+aFI7abD3tCKzJyvH9pW39pq/fKesbcNU4a/PYkcrf8Ttv7TV+8UuyHAedhHt8EROdMAHA6j52mcUlxGrIjuyOspQIGM4b+z2pl484fy1+CBq0OwEztOGWQ7OKo7Xj4q4rwR7fDMDFVVq7Z84+tBztq6ydpjDz/NNWsdJP0siinGt8ickxaR0BxPeZUpo9/Z7lHtg6DUENi9H5BMinScPmVie11RrR/trzhi9H5EO+Jp/q3/7z/egTb6wNrrSYNJouCOtznNseZOoBoH11zNpMq8t1X+s2gGb11oZhhcLgX46zeLO88KKtmO1ERy1WNMQ0DYB+KililSgMvgOd80Hv1Z74UGjbHQ+8ZIGBI29H2g8FJtLiWEDEmO6Z9YCh2izZQNUHhrQOvrO5ts1HhzyeqM8sCZEDpDu3I6lUh5BdDGNxwzOfEkujghUpy9nzWiOOOruUarQLrzoxLpA3En3+CCSarQ0ON4TgBAvHbAmIxHehReHOuwWnf8Ah2pqu0ktMTAGE7MT53JTGmXvIgkENEzmIGO7BABamRPS7vbMJ1NXOg1u+Twn3+CdJQSbGJkJVtpdAnZB8QnNEtlx+j7QpWk6cU3/AEUFRo90Pb2j1hSNGuN07yTA1YkR4KHY+sO1SbG8kvcc3OJIygycPO1BNbaAbUW1AHMaxzg0iW375EkZHrHP2IW6DiwBp2AANI2QMB2jxVZXqf1g/Qd95Ph6B+ufitxBidRHWbwkd61FoH+7UP1NP7jVlcV71M73PdwdEd61RoH+7UP1NP7jUVmnljhpO2/tNXxcSlWQ4SPPnLgm+V772krYf/Jqjbk8t9icskwPIGPqwwOGe4IicwnP3Zka487Ulw8+Ts2JTD/PAg6khw7cZ7Th+KCPaj5yxAjXv87am2jBW1pjVGOw+32ncqi2+vH3IOetfWUinlM7kxauspNLLuRTjHcVHtQ6HE+sqU3bgeCZrNlrhx89yCtYu45G1+hTGznmHtmnUb4Fy4dqvuTVqu3h81zagG7Gm/gA8H6qC60vUu2l0gkPp9A6gRDnDiKaqa4x7PYrLTbyCyoBeDCbzZzF1xntALyoFYefb7eKIMsRnJKomWju7kCEDZSZiew6pxjYlFJQFe1kasuG4BJDtoGwZxnEnGYhGggDXDZs278fDxQvbhq1bj7USNASMIQl02FxAGJJgDaTkguOT9DB7tpA7sT6wlcoCBRI+cWjxveppVxZLHzbGt2DHtOJPeud5T15e2mPkiT2uyHdj9ZBWWJvSHnLH2JdhOBJMlxknLE5+MpvEMcQYyE7JMYb4vd6XRgADYgYt7SKnOAtyiDhOJnFRn2ouwJEbGyZ7Ts3BSLUwPdjjCmWOgxrS66JyCB0WUspS7N2PYNQWouTh/qlnn8xS/22rNGkj8W36I9QWl+Tv90s/wCopfcaisz8q/8AEbb+1V/9xyXYjv8AOfFFyrH9pW39qrf7jkVnmfxzG7yERYxGcd3nbG9IMeYE7sT4ImndG/1jb5EJJcBsgDt4E5bPCECLRUkb90ngBwPmVUW3s/DcVa1XYfiSOy8diqLYfP4oKK09ZSaQw7B59qjWgdJSaQyRTs9mreg6J7ZGXd7UGjyEbhI36igqKrYcVJsFYNeCeqZa76LhDvA+CFvp69qjNKDqnPv0yx2eLSd4ydxwPYVFpVHEQ6JbAJGRwEcYwO8KFZLTgN0B3Z8l3sPBO1jBvgxleGpwmJ3GDnuREmk+DuKfJUaZ1zvGsI21NSB12KQQlNTvNygYhFCW5hGaIhAiEaOFMsejKtXqMJHzjg3vPsQQoXW8nNClnxtQQ4jotObRtOwkatXqkaH0CykQ58PeMsOi3sGs7z3BXFqtLKbS97g1oGJPnE7s0FfpW0to0y92rIbXagPOUnUvPnPLnFzjJJJJ3lT9N6VdaHzF1jeq31k/pH8N5r6lUNGRJOQG3b2D19iAqpBcBM3RjGp04+AASjUTDcAm6j9XmUDrSrAmGgKvsokqcSgsNKfkx9EeoLTmhWxZ6I2UqY7mBZi0sfix9Eepag0V+Qpfq2fdCKzPy0Zd0pbR/wCQ8/aN72pmzDKeG+ccNR7M1J5eH+1bZ+vP3WqJQ8+3XnuMoiVMHUNueZnf25JTgY17pwAJ1x9YpIcI1957r2BHnJE44YDUcY155DX2nDYgbq+/E8BrCqbWVY1iBmO3YYOXDuywVbXGH4RPigpbR1lLpZKLaB0lJonBFOhu4oxswjuSGp0jd5jbsQNVacyDkcR26x7e9VT23TCt6g85eSo1po3hOsZoItJ8Ge8bRrBU2nU2Zap17jvVcE6x8dnnxQTm1A3IGNg1EZmNkepSmkH19vYq5lQjGePnWnGPIyP1TlwOooiwpvhT7O4HJVNK0B2GPYRB/Hh3J9vkawgv6LJU2hY6ZzY37IXNU7XUbk49hg+tSmaaqjUzi0+9B1tmsdNuIpsB+iPcpq4g8oK+otb2NH/KVDtNsq1OvUc7dOH2Rgg63SHKKlSwaecdsacB2uy7pXJaR0hVrul5wGTRg0dg27zio2Hn2nIcUxVtGoNvRnjDf/16u1A5UeGie7GJ7N2/yIxeZMkTlhgABqTRIzzOtyQ5/wDL37kU46p+HvTYKaLpUyy0daCXZmQE+iARoidpfqfV9i1HowfE0/1bPuhZb0v1Pq+xansbYpsGxrR4BFZl5f8A+K2z9efutUKzHs85jKVP9IbY0tbf1oPfTYfaq+z+c57px1oJhcf0j3T2du/ekvI27ZxPcNe5EDsHiSe2NqS44a9g85Ihqpr268fCJGShWgdveD6lNqdndO3AcZyw17lCqhBTWtuSXROCFuRUUU+xLEec/cm2u8+5O3t/nVrQHP8AP3bkio3WM/XuS584JJPn2oK+1U9YTIKtDSER39qr69nLexATSlz5/FMtKclA5zk4HHwITjKxGRnc/EcDqUUuQv8AnNBYttTsrs72mRxvSUv4Xta6dkA+MhVgf2JQqeZCCwNrOprp4Ad8FNvtLjqDdpJvdzcvBQzU8yEXOb0D76k9Y3tmoDsASC/zkEyankorxKBwv86k3KUymSpNKzbUCbNRlWdNoCZZgnWuRDoSk0ChVq3Qgm6Sq3hA7Fq9jYAGwLJfJ6ga9qo0gJv1abe94H48FrWUV4F6X+Slpp2yra6dN1SlWuvLmtLgwhjWOD4xHVmThjuK81paWIOMEbMPbK2OVHq6OouMupU3HaWNPrCDJR0+yIuu7b49jRu7k27TY1YLWbtCWY52aie2kz3Jp3JyxnOx2c/uKf8A1QZOGlhtH2fxSXW1nzx3LV7uStgOdhsv/t6X/VKo8mbE3FtjszTtFCmPU1Bk5uja9Zt+lSqVGzALKT3TGfVBTlHQNsH/AKK1H9zV9jVsBjABAAAGQGAHBKQZD/oO1/6G1fwa3uQOibV/orT/AAavuWvAjQZB/o20j/0dp/hVfckmxV/9LXH7p/rha/KAQY+Nnrf6av8Awn+5IdRqa6FbjTd7lsRAoMYVrC/MUqgOzm3e5IFmqfm3/Zd7ltJBBiz4M783U+wUg2V/5up9krayBQYpFmfH5N+R+QUkWWp+bf8AZd7ltdGUGKBZX/m3/ZPuRmyv/Nv+yfctqoygxSLM/wDNP+yfcnWU3D/Jf3H3LaEo0GNW1HDKg/ud/wBUDUqfmXfZd7lsooIMaX6v5p32Xe5Fz1T8277LvctmBGgxtRdXcYZRe47Ax7vABXOjOQ2k7S7o2OuB86ozmm8DUuytXlAoPM/Rr6MTYqgtFpc11VoNxjcWsJEF7nEdJ8EgAYCTnhHpqSgg/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxETEhUTEhIVFhUXGBUYFxcXFRcXFRUXFRoYFhYYFRcYHSggGBolGxUVITEhJykrLy4uFx8zODMtNygtLisBCgoKDg0OFw8PFy0dHSUtLS0tLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIALwBDAMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABQYEBwIDCAH/xABNEAABAwIDAwgFCAcGAwkAAAABAAIDBBESITEFQWEGBxMiUXGBkTJSobHBIzNCYnKCstEIFDWDouHwJENTc5LCdLPSFRclNERjo7TD/8QAGAEBAQADAAAAAAAAAAAAAAAAAAECAwT/xAAcEQEBAAICAwAAAAAAAAAAAAAAARESAiEDBEH/2gAMAwEAAhEDEQA/AN4oiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIirHL3lW2hgcRYzFjnRs4NsC48AXNHee9BIbf5S0tG288oaT6LB1nut2NGduJyWtNtc9zRcU0F+Lzf8OV/McVqzlBUzvwvmeXSzAvkc45+kQ1ufotHZ2kqMexjRhsXPO/PyaBv80F4rudvabz1ZGsH1WtFvErDby+2m7WuI/eW/CovZnJGulsWUwY0/SlLWex5xeTVOQ831bvqKQcOld/thsi4Y3/eLtNhyrHH7wcP4lLbP549oM+cwSDi0A+YUZU831eNJKWTgJcz/AK42+9VvamwKqDOemcwes2zmj7zCW+1DDdeweeemlIbPE5hO9vW/h1I7rk9i2RsvacNQwSQSNkYd7TfPsI3HgV49EbMN8RxDhkeGWnirZyS5R1NG6OqjcbY+jnb9GRnVsXD1he19T1QiPUKLC2PtOOoiEsZuDcEb2uabOaeIKzUBERAREQEREBERAREQEREBERAREQEREBERAREQF5+53tpYdrPD7uYIWROaNQx7cRw8Q44gvQK83c9kZ/7VlO4shHiGBBWq+ps447OjeQWSAXaDlibbsJGbTYjzvnUFQ2EufE0PGbukBu6xtle3VtfTLRRFG9zb3aXMPpWzy4g5HxUtS7Lp5BeCqEbvUf1Rfhf4Ki0bDP6z1i+V7d/R4XlvBzA7GPJWaDZ9FbrTzNPY6mqAfwLVssNRC4OxxEjR+YPg7MhS9Hy42jGLNqmfeq/+sqXtltV1q6Gk+hNO4/Vpqj34AFU9qbSfTuw45M9GvwhxH2Q4keICwa/ldtCYWdVMI7G1RI8mXCxKLZVRJn0sMYOZdoOJJy9ysNqxq9kN3SPAidYi1snk78A3jM3yBNl8oasYXSSNww9UMb9KQtc1xt2kljAXaAdwBkanZuz4bF9SamXc2NuJt+y/on3qG2iyV5xPYWDcHXxW3Xvmoxbg5hK58jawOP045Lbg6TpMVvBrR90LbC09+j1AWtq3H6XQWHAdJn7StwoCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLz5zwj/xOW/qRfgC9BrQXPRG0bSNjcuhicR2ZvYPYwHxQUigqBG7MG3DUK0tkopm59GXceo/4EqmvXAoJyteIT1GtI7DmFwh5YNZk6hp38SLf7SolgXNkDTq0aHcglJOVYkybRwR9w/IBSeyaaKU3lAt3lo96rbYWgeiNBuXMDXuHwQbFl2ls+njIi6PFb+6aHOPe4fEqm1cwlfciw3D81gjRZEKDbPMt/6n9z/+i2ctbcyzW9HUuDgTjjaR2WaXC/fj9i2SgIiICIiAorlFyggooulndYE2a0C73u7Gj46DepVaZ51qqKWrwmQ3jjY1jRmC4vPSjTJwa6M9wQfNp87FXLMWUkLWMFrY7GU5C5IzaM76X01WPXc4+0IgDjYTvxFlgez0QqZUNiGTi7xYPi5fKKljc7qlo4iN+vZk21/FBtLkzztGXBHPSnpSSLxvaGOtncCQi2XFTLecinMjWjBhIJc7pCTGRqHhrC3TeHEXFuxaafRhsjSJ2xuA6ry4x3JyLW3zJWdJtiqwOjaIbGwLmwi5tocTCAe3MZ70G5Gcu6YFvSWa11iHhwLQHEAE3sbZ7gbWN7WU/TbWp5Pm54n/AGZGu9xXmafppCWue7TNo6jfFo1XJ1O7UtP+m3uFkHqNF5gp6uSP5uR7PsPc33FSdNys2hH6NZP955f+O6D0Yi0LDzl7TZYdK2Rx9FromXPfhAy4ravI7lK6qjvMIo3iws2UEuIHWOA5tF9L39mYWVEUFUcsKBheHVDQWXvk6xIBJa02s92RyFzkgnUVYh5wNmOBIqQLC9nMkafAFtye5Rzec6jLiOjlIvk4dGbjtsXggILwirMHLugdrKW/aY4e4EKToeUFJMcMVRG53qhwxeRzQSa88c+EZG1C8f4MQPd1l6HWguef9pH/ACov9yDX0Yc7QX7vyXE9m9d8EuB1wPBWKHa9LI3DKzP6zQ4eB1CCtMXdF8Cu7aMceZi9hPuKh31MjdPcglBp4D4L6NfAfBR1PUSOsD3aK0bGZTDrTWP2rn+EfkqI2Jhdk0Fx7ACTr2BKxz4xa1j5nyVyrOVNMxnR08Xk0Rs8hn7AqqZC92J2t/AdyDZ/MDTFkVUXek58Tj5OHwW11rXmX9Cp+1F7nrZSgIiICIiAtKctmRVFdNGQ0gyBguQAHMjbiJO7QrdTjYXXnzaM8V5HEgSyODzjJw5lzjlob38LBBg1uxKeOR7GyPszAXFkhwEu+he+ThvHELElqSxzi6KQlvzRYGlmmpzFu4rOnlDmOYGDCbgFrm5dhtwyUPWCQAYmYwNThIuAND7M+CDpqtpY2SiYA4g3q4sRFjfG8jJp0AF79wURtDZ4gc29g8i4DXZgdrgRl5rjJVue68znkZnXO+7XuAz3BYT5XPficS5xOZO8oNi7E/Vn0sZkqpIpcQD+u6wBlDSQ3hGcWQIyzcPRWWzZTXZtqWMda+F5p5jfHgbilZYdYG4J0tnYHEqpIIrN6MO9EYsQF8W+1ty6jGOPmUFnr6Z7I3yiSN7GSPhdibK0mRhya1rXFpu27gdLA3sclBu2iwnNliPVcBbwwrH6NwbfEQ3cCciR2C2Z7lk7K2LJK4F4Ib4e51x7CgU20IWlxa17iciQ3pCB2AteMPkuUG0qSM6YM72cJgeNwGu9hVvHyTA0Tyt+yYxlwGCyq+1YjKSOmD+EzGtJ1vZ7AALdp1QSreVTTYMm6MerHUFoO7R8gPhYdywulLnYpIi9oFmta4gN+8Abk7zv8gqu7YZdp1CdMR+TcdwD9ATxssB4fC7A9pa5psQciO5BapBYnIjgcyO82HuXdSVhZfqRuv68bX+ROY8FXIa6S3VkcPvusO9W7beyuggdK2dzy2QRtuyB4laRcT9UYooiWvDcWK/VzzQdZ2iwkXp4xrfAZGXuLDRx01WFWV5b1g5zbPa9jQ4nrsOJmZzIBsbn3qCm2hL0gFwAcOgG/vWbtenP6y9rGuOHDYC7rDC0+8lB6r2dViWKOVukjGvHc4B3xWi+ej9pH/Ji97ltbm0eTsylJ9Qjwa5wA8gFqrno/aR/yYve9Br164b1zeuG9B2R/mu1hNl1R/muxmio7r694XH8wvv5r4PiEHaNfL3LvgWONfL3LIgQbf5l/QqftRe5y2Stbcy/zdT9qP3OWyVAREQEREHXUei7uPuXnrlHRY2sNhfCF6HkGR7itJ18d42dwQa4lonjMG3HisQtqRl0lwe/8lcZqdYE9NdBT596x49R3hZlaOs7vWG3Ud6CyRaBZNN0N7Pdd3YDYD7TvgFwodmOezHI4xxDK49OQ+qwKTg5POdk1nRt3DIvI3lzjkOIF7IO6L9RHp1jGG2jYZZSOGMALpqK+lZnFOJeBZLEf4rrql2BGL4pIwRe4c8k3BAsbHsJOXZZYcmw2Oe1kckbsWKxxFtsJAzuTYm5tfW3crgZjdsxPyNx9oAjwc3TxC+RYA4E5t7Qb+R3qEm2bLH1sLgNxI4kZO0Oh71YNhz08zejm+RfumA6l9wnZuH1vaFBddj0MLorgtewix3g9ocDoeBWuucChZHKOjPV3Am5Z9UE54ewbt2WSli6eklc29j9IA3Y9u5w7Rx1HBVflJUve/rd6CGifYqRjAIuPeowhZNHJuQcpfnG5+qrSJWsrnkyGM3iIec7WDS4G4OouNMlVpfnG/dUztyMuqnNFruMYF9Lua0C/mg9SbCpnRwMY7Ii+V72BJIFx2AhaT56f2l+5i971vlgsAOC0Pz1ftL9xF+KT8kGvHrjvXJ64BBzj/NdzNF0xruZ+So7Pz+C+D4r7+fwXwfFB2jXy9y74F0DXy9y74EG4OZf5uo+1H7nLZC1zzLj5GoP12Dybf4rYygIiICIiAVpeRnyTeAW6FpqQfJDxQV+eywJDa571kVUgB/moraEvVceB9uSoqtU6+I8Vm8l9niSQvf6EYub6XN7eQBPgo+c5eKm9juDaYN/xX2PdfCR5R/xKC4bKZjtK4WytG31Gbjb1nak9wWLyh2+2P5JhxPF8tzb63PwXTW7V6KJzhqBl37lV+T0Dpps+s4m+eYJPb2jfbgBoqOO0JpbBznEYswNLjtA1tx0Ucal/afFbB2lsyBhcCTJID13nPrb2jtI0O4aZ6Cp7TiG5oHmSo1XzcJy1z24UG3Hts1xuwEHCc25G+h0F8/BS1b0Lg2WE4H722u0bznvaTlh4blVJGLuoqstOE6H2KtqWqdpvwtt9DRpzwcB9Q9m73ZM0DZ4g5vG3aHD0mFQ9Qd/9EKQ2FIQHD6J9jtWnx08lBgSbNda4Cj2CzldOlAixYSbuLeAOpue4qpV7bSWta2VvE/BAk+cb91Tu0T/AGwfbh9zFAv+cb4Kd2r/AOa+9H+FiD1gvPPPlKW7VH/Dw3H35V6GXn7n9ie3aEbi3qPgZhdxY6QPF/vMPiEFCxg5riF27MGeanX7Jic24BaeB+BQQEa7maeS+1MAZvJ8FjCtYNb+SozB8fgvg+K6GVrDpfXs/mpfZezhIc3EC+4Z+aDEGv8AXYV9fOGNvr2K5jYdPGzEG4ndrjf2aexUzbupQbY/R+mL6erc45mcf8ti2stU/o8wOFHUvI6rp7NPbhjZe3ibeBW1lAREQEREBaXqX2jPAu963QtFbbqMLXD67/Y4oK5XSi+9Q20Juoe5ZFZNndRVVJkUEbN6PipDZ83UiHY53vd+aj5dFypZLeBBQSu3JyYrcQufI+t6J7n72tJHgLhdFZA4xYsJwnIOtkSM7A+BUbQz4TdUWM7Ru0C98td5O8niu0sDw91r2tYdtxkBxOfkVWHSWy7NOI3LkytI7ctCDYj+SfMOPh61nPasra9L0cmH2dmV1FyBZYe6R2pLjvJ04nsC6KpwLjh00HEDK/ja6xdkiQpI3PbcNLrC5sCbAak20HFSXJOHHLJD67Hhv22DG3yAPkuXI+IHFi9EtkvmRkA1xzBHYvvJl2CrY/1XfiY4H3qjspKwsAeACWyMcARdty146w0OoNj2KtVDy6Qk6qaqDYCxIu8ZbiA1xue6481CNzcTxQfXfON8FObXP9pPez8LFBu+cb4Kb2x8+7vZ+GNB6zWmf0jNKHvqfdCtzLS36Rrs6Af8UfLoPzQay2BVYH3wteNC1wyI+BVopHsItISwWyNrgHjbda6pVGwE/EZEeKscLZw3qva4djxn/qb+Soj9sAYiGuDhewduPFRk+y39KIg+NxLS4OD+pYBx9K2R6py4hZW0nvzxR24gghR9HUMbKwyxh8YIL2YW3cOy/wDNQff1cxyFjrXabGxuMuwq27AeBa5A7yqbTSnLqg9zWj4K27CfN/dxNB7XvsPJoJQXGpeTH1Wk8SLDzOvhda8264BxBNz2Dd3q6V1NUOZ8rPl6kTcA8Xklx8LKi7WYG3AFgqPQPMt+x6bvqP8A7Equ6pXMy22x6XMH585cZ5TbvF7K6qAiIgIiIC0Lzi0E1I8iRp6Nz3uZJbqEOcSAXaB2drZFb6XGRgcCHAEHUEXB7wg8jS1IP8lhzSXXqDaXN7sqa5fRQgnMmMGFxOt7xFpVfrOZbZb/AEDUR/ZlxD/5GuQedCcirTyZ5vNpVkTp4YQIg1xaZHYDNYHqxCxLibWBNm33rcOyeZbZcLw95mnsbhsr24MtLtja3F3HI7wtjRsDQGtAAAAAAsABkAANAg8qbAe17JKeQtYSLtc84Q14trfS9rHT2WUBXUxY6/0T7Ctx87XIIse6upm2a44pQNGPOrz9R2/sOehNtaMeHAtcLH6TTqP67VRAOOX9ZL41wG4HvWZUbPIPUNx2FYpidvafJQdhqzazQG31sNfHU9y+RU5PeV3UlI9x6rD5fFXjkxyeAIkktf8Ahb3nQnh70kV92Ls7oYXOORawjd6Ttx9g81XG3awPGskjsPcBgHtVp5UVQOGnhPWIzPqNPpOd8O9Qez9i1ldIW0MDpGQMwtdcNYCMicbyGl3YL3Nr6Aq1EPtOa7iGZ4QWi3b9I+AsFhRwOGrSNdx3aqdq+Q22IDd1DP8AuwJf+WXKNklqYMpY5Y91pI3N1N88QGd7KDAf6Y8FLbfaTK9rRckNAA1JLGAAcbqH6QF4IPYtscgeQ7q2sNTMCKaIxkbumkY1pDW/VBAxHw7bBvKgaRFGHahjQe8AXVM53+Sr66jBhbimgd0jGjV7SLSMHEixA3loG9XpEHj6jBBzyINiDkQRqCNxVopXdVbp5W83dJWkygdDOf7xgyef/cZo/vyPFa82ryDraYH5PpW+tFd3m30h5EcVRQNqHVV+ZWqupWhxE5fGLZHAdbjIg7rYvJQ8tFTHSqA9P0on7iMGmuIX7raKDDo9Qrzyd3Kt0tJSBw/tRIsSbQuBvYWGfab+SuewNmue+1OyWRuWeA+Ogy/rXU2CU2lmywzKqU/J2WV4jDXdNIbRRAddxP0n/wCHGNSTuW3aTktUSgZNpm9tsUtstLm7fMdys/J7kzTUYJibd7vTlecUj+924cBYKDs5K7FbR0kNM036NgBPrOPWe7xcXHxUqiICIiAiIgIiICIiAiIg+PaCCCAQciDmCDqCtQ8veaYuJm2fa+Z6AnCRwhecgPqOyG4gWC2+iDyDWtmheY6iN7HjVrmlru/CdRxGS+R1Le1estqbJp6lmCohjlb2SMDgO64yKqFbzQ7IeSRFJHf1Jn28A4kDyQaMotpxscHOwuA+ibkFZ9XyrkeOrZgtbEQGtaODd5v29q2zDzL7LBuXVLh2GVoHm1gPtVj2JyE2bSkOhpWYxo9+KV4+y6Qkt8LKjUnI7kFU1ubxJBTOsZJni0047ImnMN+sRbPK63rsvZ0VPEyGBgZGwBrWjQAe8nUk5km6ykUBfHNByIv3r6iCIruS9BN87R07+LoWE+drqRpKWOJjY4mNYxoAa1oDWtA0AA0XciAiIgIiIOmWkjd6UbHd7QfeOJ81EVfI7Zshu+ipyf8AKZ8Ap1EETQ8mKGHOKkgYe0RNv52Uq0AZBfUQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhIQEhAQFRUQFRAPDxIPFRAQEBAQFRUWFxURFRUYHSggGBolGxUVITEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFQ8PFSsdFR0rLSsrLS0tLSsrKy0tKystLS0tLS0tLS0tLS0tLS0tLTctLSstLS0tKy0tLS0tLSsrK//AABEIAKMBNgMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABMEAACAQIDBAYFBgoHCAMAAAABAgADEQQSIQUxQVEGEyJhcZEHMlKBoRRCctHh8BUjM0NVYpKxwdJTVJOiw9PxFzQ1RJSjsrQWJIL/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EAB8RAQEBAAICAwEBAAAAAAAAAAABEQITMWESQVEhA//aAAwDAQACEQMRAD8A9PhCBmEKILJCAlDMBAwBgO8RMTGRvCAiNTIkwtAtkDAGBgKCxCOAyZEQJgIFgkXkhIsIVVmkw0iU1vGVhDJijvC0ByFpZIQpR2kgIjCGDC8QElaFRkSJORMIYhFeMQpQkrSJEBGBhFAIAQjAhADCIiEGLbwIjgZFEQEkI5RHLERAxFoDhaQDRloQ7QEWaCmAzGDNb0hrYtaQOCpUalTOAy12KIKdmubgjW+XzM57YvTkGr8k2hR+R4nQKHN6FW+gKPuF/Eg8CTpC47IR3mJtTaVHDU2rV6i00XezcTwUAasTyGpnnn+0nFYmuaOzsCKoG41c2cj22swWkv0j8dJFkenFYhMPYdau9Cm2KpLTrEN1tNCGVTmIWxBN+zlO/jMrEZgjFRdgrFAdxa2g84RaIGeejbvSD9E4f9tP8+a3ZXT7a2JepSoYDDVHo6VVBK5NSupaqAdVI0vulXHqUU5Ho7tPa9SuqYvAUqNEhy9RGVmBCnKABVbebDdNht3H7Qp1AuFwFOvTyqTUeulEh7m6ZTroADfvhG+MRM5D8MbZ/RND/q6UwU6e16WLpYTHYDqDWKBHSqtYdtsqNoLFc2hsbjlBjvM0LzmOm/S9NnIh6s1KtXN1dO+Rcq2zO7WNgMw4a38SNbhds7dqqKi7OwiKwDKKtQq5U6glc9x7wD3QY7sGJhPOtq9MNq4ICritnYfqrhS9GobAncCQzZfetp2eyNqjGYVMRhmVTVHY65SwRg2V0dVYEkEMND3wY2cYnBdGeleOxuJxOGC4KmcIXVnyV3Dlahp6DrBb1Sd8WwelmNxGPrYArg1+TGsXqBK5zrSqKhyrn0JzX1vbvgyu+IiKxgyUCIELRwgQMiZMyMBQhGICivHEYQQihC6uEcYjEgAI4rwMCtxKyZZUMxyDKiwGEgolgEAkhCEBAzgPSd0j2eKTYWrTXE1hfKinL8na3rtVGqH9UaniLGdT0l2G+MprTTFV8PlfOXw5ZWcZSMhsRprf3TR9HPRrhMLU61y2IcG6dcFFNDe+YIN7X4m/daGpjy47Fxr0KOKxVPGPhKXZuCGq06G8vTpueyvJiLaDhaez9CjgThx+D+r6rTPl/KZ7fnr9rPb2vdpN+ROO2r6O6D1TXw1evg6j/lPkjFEf/wDIIy+427r6wtut90jXGGkPkLYcVc65jic3V9VZr2ygnNfL8Zg9Gqe1hVY498EaWQ5Bhesz9bmWxOZR2cuf32m12FgGw9CnQatUrGnmBq1iWqPdi3aJJ3Xtv4CbCRDE8o9EP+/bT+l/j1Z6uJy/RXocmBrYmutZ6hxRuysqqE7bPoQdfWMpL/K6UzU9IaGMdUGDr0aTAnrDWQ1Ay20AHA3m3Img230dq16nWJtHGYcZVXq8OVCXF+1rxN/hCNX+Ddt/1/A/2B+qcL0op4jC7RwmJ2o6YhLhqZoHq1VKTAnsZR6rOGt87dfgO+PQ3EfpraX7VP6pj/7NqdSslfFY3GYrq7FUrsuQgG+U6Xy33gWvCyuV9OAticIT6vVVPA2qAt8CJ69v1G46gjcQdxE1PSjo1h9oUxTrhroS1OpTIWpTJFjYkEEHS4II0HITmqHo6q0wEpbY2giDRUViFUcAAGAA8AINljO9KZUbMxGbiaCrfi3XU7W8r+6U+h5T+DUJ41cQV8M5H7wZjVvRgKpX5TtPH11U3CuwsPDNmtpxAnYUdnijQXD4bLSFNQlI5esCAG5JBPaJ11J3m8H1jzv0W/8AE9q/Tq/+zUlfQr/j20fDG/8As0p0ewuhFTCVq2IpY5s+IzGr1lBGUlnLkgBhbUnzhsjoQ1DF1McuNY1KxqdaGopkYVHDsAA2mqi3KF2OxtJQMiZGQxiBkTEJRORMLxXgIwBiJlZvCVbEYhHAUIwIQMm0cIpFO0REYgYFLb4gsttImURIiUR2k7QIASVpIQMgjaFoGSvASx5oMYIp103anuHOVATHaRo1Fe+RlbJo+Qhsvc1t3vkauIVN59wBkVbFMGvtuigJJfTXRdZbs3aVOvTNZCcoJU5hYgixOnvgZL1FUXYgDfqQJCniqbC61EIPEMJqcVWNRr8Boo5D65V1cmrje9cvtL5iV0sUjXAdTY2IBF7zS9XEyfZ9caY6HLERKcBic66+sujd/JvfHUxSh8mpbL1lhlvluRexOu4zTK4CIia87bpXIy1LjuX+aYj9KKAqLSK1buyIDlTLdiAL9rvjVxujIgSRWKEORJjMV4UoiI2EBArIgJOIwEBEVkhFCUoRxQGIQhAvhCKRUoGRjJgRaF4jFABJ3kBAiAyYAxLGBKgMvSldC3ZvcgXLCxHgDKTYan4zMRL0h4k/GWDm8f8AKENhVGuo0Fh3XI1kqOOrig9M2d2L9svkUKb5dAlxbTxtMnaI7Q8JrMbjkpZQwclyQioLkkC53kAe8yeFjCwuExCVesVqS30cA1GvpvAGUXvzB3nfMw9cyAPUZmFgXvSS/iopTAqdIkU2ahiF8Thf4VptkrKUFTULZic29cpIN7eBkVqcZs6s4I63LcW/Nt/hzYbH2W+Fw4oFxUzsa7MBk9awCHXW2Xhbw0ua9nbQFYAinUUOoq0y+S1SmTa4ysbHVdDY9od9tjVx6O1lI3AAdrgO4RMs2DErYhUIDFVJDMAzKCVW2ZrHgMy3PC45yqptGmoJapTAUlWJqIAGFPrSDrvFPt/R13TB6R1qFOor1i5YUq1FVpCo/ZrGmWNlQ9r8ULeJ0PDW08J1yNlo42zl6hZwuHYO2H+S5x1iqRamNNLX1jB0L7Spi5LIApYEl1ABUEsL8wFN+VoHHpn6vMmcsaYTOubOEFQpbmEIa3Izn8Xgboy/Ja9nau7Gk+GZr11cNuvewc205b7zV4rpNhqddatWnjEqKQ4FWmaYJyOhaxQXutQXt7KctWDuGxDpd1XUA21BvpuPOat3bEtRxQqKPxdhek1yGJYHs1QBa9uM1VP0g4U8KnlMrYeMUUBYOwV2RMi5mKHtoQu/1WXw8IwbE4Zt+dL8zTc/4s1WN2IxYVWrjslTZKLKTbdY9dp5TcnEgW7D2Ks+bs5QBbS99/aFraHXWY9TGq6lQlQakXZQN2ubffKdwO6+kKp2b0hGHYUMtar1jjtVWprkvYG2VffO3InmWIp2rox3Agk8tZ6WlZWuVZW+iQ37pYzQTEBAxloQRRGMQqJMV42kAIDhCBgO0LRiEIi0IGOFXSIMkZHLIJQhHAg0iBLCJEiAQEUBAlaMLGBGDKMbH0iQOzmF9Rexv81vAa6f6TLw1XLRAJA1OhIBAjmix2ESr1ytbQsLDS5tvNt41G/w1vLx8pWZjmBINxu5zAxOFp1MpcXK3KkMyspOhsVII0njfSvAinWbsC1za4vwG8maimiH5q+QixY9xOxsPx6w+NfEn97zNpoiqEGUKLgC9xqSTv36kzwQ0V9lfIQWiPZXyEmK9w2XsqhQJFFQucoCM7PZc3qqGJyrqdBYTdnZpf1SKYzAl8oOgYFlA7xcX4XvraeW+inY3W45GyjLQDVHNgLXUqo8bt8J6v0m23SwtE1H9UaU0G+o3AAcSeHdqZQ6tCkgLBVAAN3aykrvuWOttO4TmcR0s2fSJArK5Ju3yek9e53auAVO7nOX2liXxNq+PqEUyb0sJTJ1t7Q4ndqw5+rpNNQ241MZaFBNC1qjAZ7EggciBYeZhHdr01wJ9ZqyDnVwz5fNVM2FFMNiqZNF6VRBa/Ulaqqf1qZ1XS/I6zzodJsQBZqFFxrfQDflJ/8AESNHFUa1RHoZ8PiQ1s4YUmAJJvdQAR6oy23DcbyYrsK+zupfN2SjhVVQi5A63zFWte5uOyx+bpvkcPXp06lW7oofq6ihiqj1chtf6Eu2DtxqzHB4tFXEZbrYZKeMQC5sPmVlGpHluIHF+k3ZbAU6oBZaRezWseqcrqRzVlsfGTB3a7Ro/wBNS/tE+uQxOPpFSOupf2ifXPCkMtEuD1bFVaTZvx9EGxsDUpgk+c7TZeDZcpZAhVSpIa5e54jhw4758+YAfjFHeJ9MmTMLVREJK0LSohL6NIEX47rG4HwlBk2ewXxkov6pTeyrcc85H/kJSy2P5Nfdm/zJYalrkE668JSX43N9eU5X/Xj7dJw5Aq39GgHeW/g5k0QfOVPd1n88rq1jwJ5cOUi1fsi5OnK0dvH2vwrLsnsj+/8AzRgr7Cn9qa5sWB7XwgMcOZ+H1Sd3H2dfJtAqn82g95+qOag7Ttut5D6oR38PZ1cvTMiivFednJKBMUUAzRxCOUK0kBAGBMgYMYEgsleBMTnNo4Ns9V0NiWvoL30HdvnRTm8ZjclWsrAWuLEga3UceG4+XdLx8leadL6RN2YWI5DThb+P3N5yKaGek9LmV0YnkSpuDqN4Gl9+/l3zzmsNRNJF4MtoypY7wr3j0bYBaOAWpazYkmox0vkFwov4A/tTg+le3hWxrFgWp4ctSpKDYdYNGqW49oWtpoosRPRtnVOq2dh7ahMLSYbiNUU8O8fGeCJiuZudSe9t9/OBscZjM5Z3IAG8KLKANAijkNABMNsQ5GYutFeF8pc+JPHuErY3dF4DM58RYL+9pXh0WsWZrXLrSS/qqpPLyMlpF9KsWP4vE5jwWoB2vMA+UsDirdGGSqmot8GU8Re2nDyM1eNw1twHzijqCAcpP1S5MQWSjXPrKwVj7Sk5TfxBv4wOmpbSqYiiiE5a+Fa9OqPXRwSyMO65bx8J3TdXtDBpUZbCujdYo+ZUB6uug5dqzDwJ4zzXAtbEX4VKeo/WGtz7hPQPR+c1LFUjuTEFl7hWoi4HvJPvixZXi9ei1N3pt61NmptoR2kJU6eIjUzY9Lky47Ei1vxgaw01ZVY/EzWLAy9nflU+kJ9LtPmjZn5VPEeM+mDJRC8V5IyBhEpHEblgTHXHYB77SDiOkvTCtg36sUUcdqzOWU6Hdpv0Ii2Z0xrVshNBAGDE2LG2l7CYfpRwlqa1wPVIDHuYW5c8vGarotiGNBLKDfQE67juAmOvjvh3nK/F2WM6QVFH5JTrwJPzZRjOkFVaNNxRUlzlZe12bltfgPOY1JQRrvIItfhxN5cyXVRzb/T4S9XH8ZnOtcnSysb3w40C+3vO8StellQXzUVU5SwBzDcbcZlLR+o/fxjOFDAqygjUEEXmerj+NdlYK9LHP5pPMwlD7IQklGdBusMrL/eF/jFJ08fxrseoRxQnV5koGKEAhIExgwHHeK8DAkIGELwJK053aaKXrg8Drc5R6q7z7x97ToAZyO3aNRa1WpTOpK6HQHsia4+UrjukmHKK4B0sMwsRYAAbreGp4W5gDiK/rCdltjFZldXBVgN3aFzwBB8f9bm/G1/WmiL1gYRyK912BXGI2XQN7/8A1+qbffNS7BGv0TPn4XSsUbQhihHJt1vOes+iHbQtUwTHW5r0ASe0LAVEHD9a3exmg6dbFp4TGPVq00OGxaspqFc7YdyL9YlgTmG/SxNzqLQOTdsrK3DVGvwzWse7UW98KTGkzb8t81+RHCX4vCOjmlUUhsuZcwA66kd1QKCbXFrre6nQ85jqXUWWzDgGJDAcgwBuPETNh4ZNfGZwFW5JXTdpzFuHjI1VFqdEb7h2twANz7r6CRNaoRYKq97Et5AAX95mRgsMSTa5ZiAzHeTwX6lH2xJhutjs6lmcv7Iyj7+/4Tv/AEdUbUcTWO6pXbL3rSpqt/2gw905/D0upoLRpWbEY21OkosbDUMWPBRvJ/VM6DpRj6ey9nCkjdpU6mluBeqblnt3tdj4NLSPHOlGKFXGYmoNxquAdLEIcgNxwst/veYKmZGxa9DraArKwUOr4mqfxjhQ+ZerWxtpcNfNmmCtxw5X5awrYbM/Kp4ifTBM+Zdln8aniJ9MEyUOEgWgGhEjMqjTD02Xkbj+ExDMnZ1TtW9oW94+5gaTbWzhVpNSZUYcqgJQ2PEcd17HlPNqO16qErUROyShCAKFsbWA4juM9pdNGB4k75wHS3ojULGvh0zBhd6a+sG4kDjJW+OfbV0MbTcXza6WRvWY8C3d3bpnLmBRcxJuXY3vqZx2IoMtwyMCN4IsRKRinU3V3HvMkrXxeg06d7jkSR3g8JVWPZ08DbeO7vExsFXYEC9yyqxNrEkjlMuhhqhfRHYN7Kk28ppnGvxtcUlU2uXOgHIcYp1Gz+iudmesBa1qaGzZRpw5wkyr8o6Xqr7kA7zJLhVHrGS61m3C3eYxQ4sSZXNW2TcFvIjC34AS5qqroPhI5nbdoIAaNNd4lRUHRU98tWgBqdfGD4gDQfCBGnhBxhUFMcJWWZu6TVAIFYp34WEs6lRE1bgJEITvkAQu4CcjtbGBa9am1hYra+43Vdb6/u4efaAATm9rdHhiKtRutyk2IAp529UDfm03cvfNcfKV5z0koKVZhrbeVBA46b9NeBF7Dz4XEetPYq/QGq4KnFDX2qRvx/XM5HFej1hVyfKxwBIok292cS2kciDJXnoCejNP0gP+nH+bJH0ZJ+kB/YD/ADZNV59gsTVSqtaixV6Jzow+awA4cdGtbiCwPKe1bL2phdsYY0agXPlBrUvnUz/SJxKX3Ebj3zkD6OAhJTHi54NQAB9/Wdw8pbhPR+UqLXXaZp1E1VqNEKVO7f1mumnfcwNL0n6KYvBjIyviMOisuGcXL4MO6FqiKLdrKlhrl8ASp53E16RKtSqmzVFRkxQKvTVme1R6qAKwCquaymxbed899wG0MlMJXr06rCwLrTWlm/WZM5Fzxy2HdNdj8DsqqS1VMNmO9tFbz3/GNV47XRAjsuJwDMoJVaVStWapYMSoBVQDcW1338L7Loq9VqgGFotXfIFY1EC06NQ7zfcoAJFtCbaX3TvnwewqWtqDHkc1T4HSKv0yoIvV4daSACwLlAo8KanX3t7pLSLMBgaOzadTG4ysr13B6yruAubmlRHed54nfynj3TDpK+Prmo2lNbrQT2U5nvNvvqT0+29nrjanWYjaDt7KjqgicOyvD7TMROheF/rdT/tRsHDM5003AKbcQNx8ZYHPn97Tu16D4X+tVfOj9Ukeg2Ft/vNY++j/ACy/KDjdln8bT+kuvvn1U2HXlPCcF0Nw4qpatXPaXQGlrqOSz3hqye2v7SybqViGkL7pcuHXlK3qLf1l8xL0rJ7a/tLAqqUF4CRoILg21Gsvasntp+0soSqgPrL5iBkVyNR4H3H7byS7pi4tlazLUTMu4FhZhyMhT2sNxTXuI/jGi8G51F/HWWPTW3qjyEwzj1vfKfh9ct/Caey3w+uNFtF+FpkMbzWttJN+Q/3frjp7UHsn3WvLoyQCDrCY1XavJPP7I5NGUcQT6qyPVMfWPuEk1cDd8JWXY90CwKqyJxHsiRFHnrJFgIECrHeYwiiRaoTuES0r74DatyEiEJ3y2wEg1XlIJBQIjV5SIpk75ctMCUQCk75XUw9InthSV3ZjYi41sZe9QCa+thndje4XTdv3CWFM08Pew38hVf8AdmmuqbCoOxLUadjrzJ8TNpSwSpwirYhUEYmsQdGsCN+Ho/f3yurszALp1GH8OyZCriXqGyCw5zJwezgNTqeZgYy7Cwrf8vQt3AS89GMCQM2FoG27MoNptMoA3SvKX3aDnxPhGSGtcNgYBdFwtAE8EWxPlF/8Zw5/5dB4XH8ZvaNFVG4DnzMsNUDnCuardEMKRorL3h6n1zX1uiVBfztTzb+adVXx6jQgymnQV9dffeP4ObodFqZ/OP8A3vrmWvRSn/SN5H+adEMPbh5SnEVABGRNrQ1dgUl31T5H+aU09h0m4j3i/wC8zMYGo3dNlh8OAN0mRdain0dRWzrUyk2uVQAm265DTePgB7Xw+2DL3TIqGWyQYa4K/H4fbLBswe18PtmXSWW2iQa47NHtfD7ZWMCPa+E2NQyNJZMGKuzB7Xw+2DbKTib+77ZsiOEreXBq/wAHJ9x9ssGyU+4+2ZA3zJUSSDBXZVIb1B8bj9xgMMg3IvlM8iUVVlyATDUz8xfIRSVMwgRpoOUshCQY9ZjFSWEJBeBIuYQlGLe51mVSUcoQiC2UVmMIRROgolp4whLErBxjkA6zQjtP2tYQijeYamANBMgwhKMepqQDuJF5sUUCEIpECZjY1iBpHCKMCixJ1JM2lJRaEJILlOk021DHCKDZ6DTSbICEJYKq0tUQhJSL1ElCEqqKksoiEJBYZRiTpCEo1y75m0hCERKtMxa++EIVPDmEISD/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhIQEhASFRUWGBcVFRYWFxAWFxYVFRcZGBcYFhYYHSgiHR0lHhcWIjEhJykuLjEuGB8zODMsNygtLysBCgoKDg0OGxAQGy0mICIuLS8vMCs3LS0tLTUtLS4tMC0tLTIuLS0tLS0tLTEtLy0wLS0tLy0tLTAtLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAwADAQEAAAAAAAAAAAAABQYHAwQIAgH/xABKEAABAwEDBQoLBgMIAwEAAAABAAIDEQQSIQUGMUFRExciM1JhcYGRsQcUMlRVc5KUodLTI0JiwcLRgrLwJTVDY3KipOEWJPEV/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EADERAQABAwIDBgQFBQAAAAAAAAABAgMRBCESMUEFExRhcZEiUVKhIzLB0fEGJELh8P/aAAwDAQACEQMRAD8A3FERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEUJb877BCS2S22drhpbfa5w6WtqVHnwj5L89b7E/yILWiqe+Rkvz1vsT/Im+Rkvz1vsT/IgtiKp75GS/PW+xP8ib5OS/PW+xP8iC2Iqnvk5L89b7E/yJvk5L89b7E/yILYiqe+Tkvz1vsT/Im+Tkvz1vsT/IgtiKp75OS/PW+xP8ib5OS/PW+xP8iC2Is/yv4XcnxECLdrQTp3Jl0N6TKW16qqN37LL5na/+P86DUkWW79ll8ztf/H+dN+yy+Z2r/j/Og1JFnWS/DFYZH3JY7RANT3ta5vQdzc4jspzqZ3ycl+et9if5EFsRVPfJyX5632J/kXPBn/kx2i3wD/USz+cBBZUXDZLXHK2/FIyRp0OY5rh2jBcyAiIgIiICIiDqZUyjHZ4nzSmjWjrJ1Bo1knBYfnnnXaLWS17zHFqhYaCn+YR5Z6cNgV18JmUavbDXgxNvkbZH1pXob/OVjGWbfdq8440A2lB+OaNQXwY1Wp7Y95qXHoFQOwLivnae0oLQWJcVXvnlHtK5IGve5rG3i5xoBU6UFkuL5LQu1k7I7GDhfaO1l1S3+Fpwpzn4KSdgMMOjDuQQdwJcXNlC03QSScFVpJ3Eklxx5ygsdxflxVvdHcp3aV+boeUe0oLLcS4q1fO09pS+dp7Sgs1xLirN87T2lL52ntKCzXE3NVrdHcp3aU3R3Kd2lBZtz5l+3OZVjdDyndpTdDyj2lBZwxfQjCq26HlHtK+o7Q9pqHuHWe4oLxkW1SQSCSzyvifymGleZw0OHMQQt1zDzs8cYY5QG2iMAvA8l7TgHsGyuBGo02hecclW++McHDTz84WiZm28xWmyzA/fET+dkpuGvMCQ7+EIN1REQEREBERBjnhAlrNaT+Onsta38ljucbuEwcxPctdz+420escshzi8pnQe8IIhFz2e0lgeAG8MXTUVoOZcK5ulMU4jE79fL934rfmrkYiCS2vwr9nCDpN4gSPHNSrf4iobNvI/jMtHG7EzhTP2NGofiOgBXmOwyyue+sbYmMEcEQL+BGHNxPBpU0FVZTbqq5Qz3dRatfnqiHVZSi453iikv/yn8pna79l07ZkqShxZ2u/ZWeGu/SojtHSz/nCnZetQLtzB0Yn8h+fYoi8p6fNW0ElxfESTU4v+Vcf/AIrNyou1/wAq74W99Mp+NsfXCGqlVNHNSblxdr/lX0c0Z+XD2yfKueGu/SeNsfXCCvL9qpxuaMx/xIe2T5F9x5mTuIAkgqcBwpB3tXO4ufIjW2J24oQFUqrfH4NbWbv2tmx0cKb6a5p/BbbGiplstOZ0301XwVZxhfFymYzlSqpVXiDwUWx2iaydbp/pLlb4IradE9k9uf6S5MTCUTE8lCqlVfGeCK2kkbtZK/6p/pL8d4JLaCBu9kx/HP8ASTBlRKor+3wP2447vY/bn+kqbljJj7NPJZpC0vjddcWklpNK4EgHXsXHX1kV32o5we6v5LQ8kO+zB2OaR1OCzvI3Gt6D3LQsj8X1t70Ho1ERAREQEREGL5/cbaPWOWQZw+UzoPeFr2fp+1tHrHLIs4fKZ0HvCCIXNZbM6R7YmCrnGjRzlcSslmsjrM24MLTM3H/IhPc93wCDu2Qta9llid9lESZXj/GnukE/6W6ArdmfaAbQDJTcwMbxAbS8KVrgs9s0w3aOGPyW1rzm6VoWTsmuZBJK4HENHa8LZp5+GY83ido7XoqxnEZ9sp1s01QTaRpx/wDYZ8647fa7Ob4Lam9Iai7jeD7pDqGgxb+ygpnhrSag0wXUhmwxxr3rTYs02p5zu8SmucbffdO7pBVxutLS7BpboFQa1odGwADTUO0KItrWmR9xtGkm6DsXNE9hrjdFBSuNXYYVAwrifhzrkkipUOGNac4pzL0LeOeXK71WMTCODSMKUUllOezujgbDC9jmspM5zqh78MWipw8rZpGGC67o9S4bLY2y2mKF8ro2lr3cDFz3NpQCoI0V1KrVV02rc3Z6fw06K3OpuxZjHxdfTdcswcq2WFkjbQIsXl157S4gBrA0ABhqCb2vCnOo7Oi1WV7nGzNDSZXuJDS28wsjALea8HmnPXWo3KGSTGYnsdJJDKy81z2gOaW8qgFAQW0JXC2LUsul7u/+NTn0au0Zu6X+2riMY2nyXHNS4bO6+0ueDRhrQN6Rr+PUpSWC8C1Qmbbw2Nw2n8gp+znCqy3oxcl6einj01M+TqWKIgFp1LsWYk11EYddBTbhW9jzhc8XlHDHvC/JoacNmI2awq6sVS0URNMYcphNaqrW/JtvdJIWSPDC5xaBLTgkmmFcMFaDMaB3auYPriFmu2YuRiZmPTZy9ZpvRiZmPTZx2WM3QDW8AL1camgqa9NV508I3952z1n6Wr0mxxwK82+Eg/2pbfWfpapzDRSiMjca3oPctCyRxZ6R3rPcjca3oPctCyRxR6R3qKT0aiIgIiICIiDFc/ONtPrX96ybLURc9jRsd0AYVJ5lq+fJ+0tPrX/zLNsoDBp2kg9DaGnafgg6uTWiJwewAvbiHvaHUO1rTVo6wSpZtpe5znOuFzsXExxEuPObqj4GrvwhB3sltax4LY4Qccdyh2H8KsUuU5Xt3NzxcGNA2NoJAwrgK6fiq9ZdI6+4rtW6e42rgBrGAGnRgFr0+OHd4Xak1d7ER1j9ZcVsnJdhiG0BOw0wHYO9ccMtDUio1gGleuihpLeSaigXNZ7ca0cNOv8Af+tSti5GWXw9VMLFZLXHfF9huA4gGjqaxepjpGPMNC5t1FeCKN1A1J06zoJpsAXDY8nMlaNzlaZCOLc5sTg78JfwXjoIPMviSzSRktdG9pGBBDtP7f8ASst36c4zuhe0tzhieHaescvd32UNcV17XazC6OdrgHMdrNCQSKgHTq1aqr6ssEjtDD0kUHaVHZRsZe5wFJDSh1U5m1UdVqqK6JtRHFM9I6NPZmhu27kamueCmnrO2emP9r7bMpNkgu7sACWgltCMXA3DW9QUwJrUVUXk+eyzAUD2GprQkgEEjX3ql5Pskr3COBry6tbmALSNtcBTHEqbZm5bGXneKveSK0a+HSdNTf69elfP0V3LGYprmPt9n2ly1p9VEVXLcVbc8Z9pXFtkEbS9jw9tRjr56qbyM8PjNNmCo+abZA6SGRkkZLK7m4mgI0nHvCtObrTGLnOf+l6NFdddPFXOZeRctW7Ffd2oxT8vkk3ONA4DEafzC/LbI9gEsYLxpc0aS3XQbRsXJFIHVI2kHpGlcsQwoDQjEKcThCYzGHVilbI1r2EUcOCRo6CNvMvyzOc111ww2hUnLOdThI/xNrQ375IvBxqBfaNDcdZ01XDk/POWoE4vM5TRdeznpoI5l3MdEYirq0hmmuii85+Eb+87b6z9LV6Hya4ubUkEHEOGgg6CCvPHhHH9p231n6WqupbRvuicjca3oPctByTxR6R3rPsjca3oPctByVxTurvUFj0ciIgIiICIiDEs+OMtPrZP5is3yh9zpd+laRnxxlp9dJ/MVnFt+7/F+SD5hC70S6tmjJwaCehdzcXABxaQDoJ0GuKDswHEdfcujleet4DQP3xX7LabtDrNQOmhXWa9X25+HDytZT+NFXyj9Zc+R4LzXEMvEHXc2CgBeCBXGppXydVV+5xyN3UNa5tGtDTdBwpj16VHPsuylOdctns1DUnEaANu1SxKM104TFgtz4yHse5rgKVBIOIocQpYZ1WqrT4wXUAwc1lHYY1oASa66qtNX2w4rtVui5+eIlRav3rO9uqY9OXssmUMuyz0DiGgVrcqL3SmS5WNcLzajYKdfSoVj12oJFbYtW7UYojDNrNTf1E5u1Zx7e3JZ7e+KF/jVmdwgLr2YkvjxrXDSK1rXRtwVns1vM0TZYTi4VA/L+v+1nrJwAST0qVzVt7oXFrmPZC91Yy4UAdrA2DSRzdC8ztSxTtXE7vof6d1tyvis1U/DHKekeX7LZYrbfeA5oD8R+4C5WzhjqnUaHrUVbIJI7bFNHGXRygXyDg14wJLdhFNeorjzim3KYnG7IBXmLf6CaCiZt4ae171NFyK+nKUtPbBG4P+48gPPJdqd0aiu3lRxdBOGYP3KSgGs3TSi6GRrr2EOxY8Ux50EToXbk4m5X7N51fhJ7lqwxxM8+kqJkK1Na57ZH3GPY4GrDI0uobhcwYkAmuC7eXbJDwZbOWOjJLS5jZmC9SoaWSkmoAJqKDEKRytmnecXwuaAcSx1QGnXdIBw5qLkyNmK8uDppGFoxuMLiXcxcQKDo+ChMLuKFyzOiIscAdyf9tTd/20Xn3wlj+1Lb6z9LV6Xs54IbS7TCg0ADRReaPCX/elt9b+lqjLsIfI3Gt6D3LQMl8U7qWf5G41vQe5aBkziXdS4k9HoiICIiAiIgxPPrjLR61/es2tmkdf5LSc++MtPrX96zW3u8nr/JBz2B+J0HQaFwbiCCMTh1KUyhOdwiBY4eTibtDwTooaqHsBqHtBpXVR5qKHkg6CQuxl+1ubZY+DTyQ01B+4dXRigg5bVfnaBobUDpoan+ti74dTFQVg4xvX3FSlqPAPV3qyicQwaqnNyI/7m+ZcpU0AU2lctnt4cQCKc9cCVpHghsjfEbXaLNHFJbmytZR7b7mwEMPBGJF77ThAHFuIN1QvhqscEdshMTGxyvha+0xtugNkJNCQ3AOIrWmwHXU9iucuzpqOFX3AjAgjQccMCKg9hC6U2UeEQxuFcKmvxw7UmebhOu7/APVGBSmpntWonMykm5Ufsb8f3XYgypK5zWMYHOcQ1rWte5znE0Aa0GpJOFAoUOU1kLxiGaOaGONz7r3R3nwkEXHNcQL4q5oJN04ggEjBO8mFvhqJ6OxZ8pzOk3MR1cCAW3Xkh14NAc3SOEQMdZA0q2z5zTS2YxmGJzKAXg2TguFCDevUBFW6do2qLs2dNvdNd3GFr60cwbs1pfJKLTwoxMG3i9hJNAaXg7CgEhFnHb2Fl9kdwC6bpuvIjc2R5c5riA5xYXVIIcXONCDRZb9HHPFU9LSVRap7u3DnyXnrOGtaY4TdNMQ88IYHQ7FROcmdE0jgXNj6g/8ANy+7bZZXSPmey7eJfdBYWsZQua0UPBAYKCuNGjSVEZWhq29sUtLPBOIQ7Qo72j4t09mbnddkEM1A1+ANTQHVWujpWlRTkAxTNDmnyThiFgDolseR8oOksIvsLiItOnhBunbVapiZjiYrNUUT3b4t2WwxxbBQga3eT0Aa+lcWTs7KOAlZd/E2tB0g6l1827PGJHGr71G3QyjnhteGYwfv0poBN2+RiAu1nAAS0Y32ktff8vBrK1qA4i8X3S4XiNOpVcTVFC32e2VbeDwQdmIXnjwivrlO2HbJ+lq2jJdiY2KOSrgSOEATSgJANOiixLPtwOULWRo3TD2QuVcnaJnOJR+RuNb0HuWgZN4lyz/I/Gt6D3K/5O4lygsekEQIgIiICIiDE8/eNtPrX96zDKjsW9f5LUc/2/bWkf5hPaAfzWVZZOLev8kH1k2ThU20Ixpi01Go7KL9y/K90EV5rQ0Ft0hxJPAOkUFO1RzLZcHkg4git7AiuOB5182vKTpI2RFrQG0oRWpugjHtQdeyOAe0k0GPcVJutDCKX29oUMV8XVKKsKblmK5zlLWe1PhdfhtBY6hF6OQxuodIq0g0X414c4vklDiTUkuvOcdrnEqKupdXMk2sxjKfNqZy29oXRmu/de0jpFVHXUurs1ZRp08U8pd4O/E32m/upnJr5pKHxmzxhrWxgufY43XGm8GitDSuJJ01Na4qsXUurmVkW8NEsjQ1xkda7M55IJcZ7H90Forw8TRxBJ01xXdmna41dabKTwjXxixA8IFpqQ/HAkDYMBRZddS6uTusiccmoSWsEGPxix3brQRu9iDaBxc0CjqVBqduPOulaQwgt3ey4jVaLKR/Os8updSNireMSveR7LZy4+MWqztaPuiSMl3NUGgCvOQs5bJFwfG4LtcKyR6+tYXdS6rKblVOflKqq1TVwz1jq23KFosTjejttjI1NMsQc3mBJoQlktdlc6stvsoFan7eJzndjj2lYldS6oZWYekH5zWC7dFtsoAFABLFSg0a1hmeUzH260vjc1zC+rXNILSKDQRpUFdX2EmcuRTicu7kfjW9B7itAydxL1QMjca3oPctCyYysRG0gdpouJPRgX6iICIiAiIgybwn2S5aHOphMwPB2uYAxw6gGH+JZFlizFwNBwgajn2hemc8c3hbbOYwQ2RvCicdAdTQ78J0HqOpee8sWV8MroZozHI3ymn4EHWDqIwKCivJrivlWaeBjsXNaefX2rh8Qi5A7Xfugr6KwGwxcgdp/dfniMXIHaf3QQCKf8Si5A+KeJRcgfFBAIp/xKLkD4p4lHyB8UEAin/Eo+QPiniUfIHxQQCKf8Sj5A+KeJRcgfFBAIp/xKLkD4p4lFyB8UEAisHiUXIHxTxGPkD4oK+isPiMXIHxTxCLkD4oK8isXiEXIHx/dcsNjjBq1gr296DqZDsRBvuFCcGjm1laTmlYDJPZYBrka93MyM33V6m06SFVbCzhNABc4kBrWglzidAAGJPMtx8HuazrKwzzgbvIKXcDuUem5UayaF1MMANVSFxREQEREBERAUXl7N6zWxly0wtkA8k4h7a8l7aOHUVKIgyzKHgVgcSYLZNHXQJGxygdFLh7So3ePk9Js91P11sqIMb3kJPSbPdnfXX5vHyek2+6n662VEGNbx8npNvuzvrpvHyek2+7O+utlRBjW8fJ6Tb7s766bx8npNvuzvrrZUQY1vHyek2+7O+um8fJ6Tb7s7662VEGNbx8npNvux+um8fJ6TZ7s7662VEGN7yEnpNnuzvrpvISek2e7O+utkRBje8hJ6TZ7s766byEnpNvuzvrrZEQY3vIyek2+7O+um8jJ6TZ7s7662REGObyMnpNnuzvrru2LwLMHHW+R/q42R/zOetWRBBZu5oWSxYwQi/ShkeS+Q7eEdA5hQKdREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTptGSPVjB6msqPt7TtcV1wtTRQHll96HfLhQ&amp;s</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMQEBUQEBAQFhUWFRYVFhcVFRYYFRYVGBoXFhkZFRUkHSgiGhomGxYVITEhJSkrLi4uGB8zODMtNygtLi0BCgoKDg0OGxAQFy0mHR03KysuLS0tLy0tLSstKysvLS0tLS0vLjUtLS0tListLS0tLTUtKy0tLS4tLS0rLS0tLf/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgIEBQcIAwH/xABPEAABAwIDAgYKDwYFBAMAAAABAAIRAyEEEjEFQQYTIlFhsQcyM3Fyc3SBkfAWFyMkNEJSVJOUobKzwdIUgpLR0+EVNVViYyXC4vFTg6L/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEBQEG/8QAMBEBAAEDAgIHCAMBAQAAAAAAAAECAxEEMRIhBRMyM1FhgRQVIkFSocHwkdHhI3H/2gAMAwEAAhEDEQA/AN4oiICIiAiIgIiICxLuE2CFzjsHfT3elfd8pZHF9zf4LuorVnB3Ds/w/C8hncWfFHMFXcucHyaLFjrc88YbB9lWB+f4L6xS/UvnsqwH+oYL6xS/UtcbX2rhcLHHZATcNDMzo54AsOkrz2PtrB4sltEsLgJLHMyvjnAIuOkSq+vnGeFd7HTxcPWRn982y/ZVgP8AUMF9YpfqT2VYD/UMF9YpfqUHNBnyGfwhedNlJwlopuHOA0j0rz2nyT93z9X2/wBTz2VYD/UMF9YpfqT2VYD/AFDBfWKX6lBDQZ8hn8IVJos+Qz+ELz2nye+7p+r7f6n7eFGBOmPwZ32r0tB+8vnspwPz/BfWKX6loLh2A3FckAe9HaCPjPWtDVd8p3pK0U1cUZYLlHBXNPg7H9lWB+f4L6xS/UnsqwPz/BfWKX6lxvxrvlH0lfc7vlH0qSDsj2U4H5/gvrFL9SeynA/P8F9YpfqXG3GH5R9K9KPKmahECRryja3RafR0oOxfZTgfn+C+sUv1J7KsD8/wX1il+pcfMbMiSYBk5rAidOcRCog65nQdJN/OJQdieyrA/P8ABfWKX6k9lOB+f4L6xS/UuOiT8o+kqjO75TvSUHZI4T4G5/bsHYSfd6VhznlLKscCAQQQRIIuCDvBXHGwiYrSSfcX6+ZdZ8FPgGF8mofhtQZVERAREQEREBERAREQEREBERB5Yvub/Bd1Fav4PH/p+F8Sz7oW0MX3N/gu6itWcHj/ANPwviWfdCzanaHR6P3q9Py0/t7HF+Lqmq53dntcQAXNaHFsNaSAYAgAkaarGbOxD6OLovpnltqMiDrJAI84JHnWy+FvANuMqGvRqcXUd24IljiLZrXadJ1mF48GOx+3C1RXxFQVHtMsaAQ0O3Ek6xqLDzqXX0cCHsd3rPLxOyxiqjKNJrZFN7nh5GhcACxp6DyzH+3oUT7HuMqDaLBTENeHCo1va5Q0kE94xB6Y3rbuKwrKzeKqtY5joBDxLddT3tV5t4PYfAuy4enTbmEktHK10JJJjeqabmLcxhqrsTN+KuLz/h7kqguVJcqC5Z2/CCcPD75PkjvvOWsitl8OT75PkjvvOWtCuja7EPn9V31SuhTzODZAkxJIEekgfaprheC9OnSBqHMXkBswACC43Ac4zALf3tBlvg+BuEFXFCQHANfLZEnkOuAdY6L9a2Nwqovp4egPitIbUNg0jkNa3LFgQ57QdQDreDYoa02tssNeRRE8pw7YQe2Lcg1gtBAkknKd9lkuDewOMbxjwS0h2XkkEuboabg6SNd3N5pDwe2ODVdVqOfmBcMxDQHudY+4kWuW74dI3BZHbW0GUCd7rmL2PMDaRM6HmUohVVXnlDAVeBxk8W5jadu2lxm+jeYwdSvbaWzKWSMouIFtATNo0i/pVt/j1QS6Gk6NNjHamPR0xfRWVfH1Hg35t6lhDi82Gx2DDTAVrkhZCtO8+vQrRwTCUVL7YQtW8S/8l1jwV+AYXyah+G1cobF0reJf+S6w4K/AML5NQ/DaoSspZREReJCIiAiIgIiICIiAiIgIiIPDHvDaVRziAAxxJOgABJJK1Xwf+AYUf8LPuhbJ4S/AsT5PW+45a12I73lh/Ft6gsup2h0ujt6vT8tYcL9v1cVXfSDiKbXmmxk5WmDlzPvBkib6Dzqw4K8JKuErsbmdxTnBr6bicoBMZmj4pEzbVZDhpwTr0676tGm6rSe4v5ALnMLjJBaLxJMHmXjwa4LYjE12VK9N9Omxwc4vBDnZbwAbmYieb0KzNHV+Sjgvdd885/fRPeF/CH9iptytDqjy4NzTlAbEk8+rbdKwXBfhpUrYn9lxDGS7MGuYCIc2TlcJIIgG4/NZrhbsAY6kG58j2EljokXjM1w5jA9AWF4LcDHYasK9eoxzmAhjWTlEgiSSBuJtCz0zb6vnu6FdN/r44ez+5TQuVBcqS5UOcs7dhCuGx98HyV33nLWxWx+GZ98HyV33nLXdMEugNkzpEz5l0rXYh89qu+qbI7EGzXte7FHtD7nvubOsQYJAPmUh4bYoA5QXXkQBBmBMRexAGvUF84CbTacE2mzkPY9wc0APJOpJAFid/fF+fD7frF782btbzqbQDbWx+Kfkm6uiGOqrwVPxnE0zEN3aCQLgSN5kT6yofj8XxryYNyYtpN7QYuZ3KTYx/G4R1N7WteDLXDKHPYCZaRbnmYE5QCsHTwQZdx5R3C5HSQp0xlVVPDGHjTw5npOp6ErNA00V46o0evWrSsJPr6yrMKYnMsbVElWtQcwWRqNH9v5q2qBQlfSutii1bxL/AMl1ZwReHbPwhaQQcNRgi47m1crbGFq3iX/kunex1/lGB8lo/cCrqXU7JEiIopCIiAiIgIiICIiAiIgIiIMbwl+BYnyet9xy1hsU+8sP4tvUFtTbVA1MNWpggF9Ko0E6AuaRf0rU2xHzgsOf+NvUFl1W0On0bvV6flGOFHDc0ajqOGawlhh73yWh29rQCNNJnWbK34N8PHVaraOJYwF5yteyQM24OaSdTaR0W3qHcJKDqGKq03i5qOeCdHNcSQRz6+meZeGy8K6viGMpNImo06zlAiST0XKn1NHAq9qvdbv89m7i5ebnL45y8y5YHcVFy8y5UucqC5HqJcLQTiCACT+yu017ZyjPB/grWxbrMdltoRN7wBBvlmxjUSQFOHYP9o2pSpTAdRObXtczi4WvcSLXup1/hTw15AsZLgDAjMMjRBJaMuUHXQ66rpWexD5zV99UimzuDzcHSYx1Q+5kue5sm9+RMCHAzHfEX0xWNxLq1cii1wcSWxAABgSGnf2uvSeeVI6tHNULX5zY5QHZb8onNzAxEWMc6u+JoYakJYym9oIdlzZzcZb31hxHmjnVzGjuIpcTQLaj/dCM8RymwTJjdcdtEXGuqhmIxMybiTprY3757++yz21Hcc6pUzHK51sxncAYM9Atum2ijtXDOzQRefWAFbTsoubvOk7M71sslWow23271a4WkGn19ZWQdUEX9H81PCrPNiKlPeZVtUYslVdJ9fsVnUCrldTL22S2G1vEv/JdM9jr/KMD5LR+4FzTswQ2t4l/5LpvgLhzT2Zg2EgkYajp4DSq6minZnURFFIREQEREBERAREQEREBEXhjq/F0n1Pktc70AlHsRmcIbtLsgspYyps+rha2cNec9IsqNyBhfmcJaRDRJABhQ3YhjBYYf8TeoLzwlM1Mfia+rv2TEh7jJJbxR9BkNE9JX3ZLveeH8W3qCw3rkV0xMOzo7FVmuqmqfD8m0tnUcQAK1JjwNJFx3jqPMvPAbNo4eeJpMZOpGpHMXG8K5LlQXKjM4xlv4Kc8WOapzl5lypLlQXLxNUXKguVJcqC5eDH08RRZtFrsQ7LT/ZagJ5pJ16Nf76LYAgRTaGQ7lNykkFrvjB9/91t478DUvCY+7HyZ3WVY4V+Idh6VbD1XSKZZVl0ua7M5oyCAYOZotPKiYC6dnsQ+b1ffVN0twrK7XMpF5e0ZpIHKZvg74On9wo3tLYDnfGeIM31LotmO+NPQvTsX4ri6VQ4qu59aq54uQS0TJMz2vJBgWE+if7Uw7KzA9mVxvpfn3ecK6JY6oaZxGL/ZzldTzXvmMC8zytIkx3o0gq4pYeliOSGhlVoEQ4ZXkWLS2OS6Z3R0DVZ/b2xBUY4b/U81/wC6hOx65pVrgzoRJuZ0ndaTzyXc4VkclM83niqA1Gkx598/y6FZGn5/Xep5tfZpqsbXZBDu3uYB555jA3c87lE8RhwwxB8/5+v8hbHOGaYmJY59P/3z/wBlbVGhX1fm+z+asqjVGYWU1PTAjkV/Ev8AyXTvBGoHbPwhaQQcNRgjTubVzJgKcNrn/hd+S6Q7HX+UYHyWj9wKivdrtzmEiREUVgiIgIiICIiAiIgIiICwnDDE8XhHf7iB6OUfsaVm1COydi8tJrOhzj37AfZnVd6cUS0aSjivUx+8mB7HWAFYY2o+YdSdSkaw8HNB5+SPSsBsh/vPD+Lb1BbA7HGE4vZhfvqGo/zAZf8AtPpWutku954fxbeoLHXGLdLrWK+LUXPLEfwuy5eZcvhcvMuVDcqLlQXKkuVBcj1UXKguVJcqSUEd4Rn3V3kz+sqJ7N2s6jTqUuVleQYBiCJB1kXBiCD9kGVcIO6u8nf1lQMrp2exD5rV99Um2z9vUa+ai8Opuc0FtUF591YS5pNJohwkk2APKcANAtgjbFWmOKDy7I1okNY0HOJ7YCwjSBfMDe60Sx5aQ5pIIIII1BGhCl2F4SVqpYCWF4DnEul3JAEgtAzO5IdqTM6i83RLHcpmY5NvbP2/Tryys1oLcoNQktc2THawZkzcW6Fh9rYVlLEVQ7I649Bu0AyIIDSYB3k84Mf2XQBcK1KocogQBmcTEXNi5pzF3MRJvKyeBxhrCHjltPFkkZszc8gOfHagPgXtbfczyz4wyNN2Qta2o9hzMytiZJkukc2oLvTGq99r7BBc/K28ugSNTofN59VabU2e6pSc+jAcOSYJBILRYHcBAFz8X0R7B4qthmOPGQZA7QXHJdElsnQSfNJ0XucPYpiqGVo8FWB2apYAwATF+l28/wB1iNs7MbTe4BsXiN27+Ysrirt+qWCm9xLnNvaHHffmEQJPp57TaT8zeW8OdA0NssatvaxkmYn0KUS86th6Nm4gb+Jf+S6S4F0BT2bhGNmBhqMTr2jSubGCG14Ee4uB71o866X4KfAML5NQ/Daqrm7RajEMqiIoLBERAREQEREBERAREQFqnso4vNWLObKz0DN1vPoW1lprH++9p0mah9UOPgudmPoB+xZtTPKI8XR6Oj46q5+UNobLwnE4FlLe2iAfCyyftlaX2WfeeH8W3qC3xi+5v8F3UVoPZh954fxbeoKOpjERC3o2eKuuZ+ePyuC5UFy+FyoLljdd9LlSSqS5UkoPpKpJVJKpJR6wW3j7q7yd/WVBCpztzujvJ39ZUGK6dnsQ+a1ffVPiyOyHcuwlwveMttJm3bZbnSFYsZM3At036BA61INicQIEwXNyk6ySIIAIgQXA2JJjvhWwy1TiFFLbr6VcuM3dDpAc7LYgGQBNhzGxG8qVbH2yyqZaWktAMubLYAHbtudXkQDudeyheMwjrOcHGbu5Ns+8OvbUT0knoV7sLCU3jM+Gua6GnVtrkkZXB0S0XtympE4QqpiqG49lEvbmaQ4DK8XlsQDBv0wqNs8FHV6rqjagB1LXARJN8hjQgQREekq04K1ORxTy0Q0OJZLWgS5rSZN2wCRqDbTQSmtiW1nCkHX+LJhwykSHDpgEeErZnLPbpmmZhrrhBs4UX8WC0uAGaBFjdufvCfNGmiwFR4DrGXXuLag6Hd4R8wWw+E2FZXpghsVMmUi2cEExmG+D9hhQnCbFIfL/AFP5n7F7C+KJlbNw5FGu4/8AwujmExpz99dG8FPgGF8mofhtWh8dhj+z4hxGlF/m0+1b44KfAML5NQ/Daq691kUzTuyqIig9EREBERAREQEREBERBZbar8Xh6jpg5CB4R5I+0ha04BUOO2o6puptc4efkD732Ka8O8VkwsfKd9jQXfeDVgOxHheRXrn4zwwfuyT1tWWv4rsR4OlY+DS11ePL9+6e4vub/Bd1Fc/7OPvTD+Lb1BdAYvub/Bd1Fc+YA+9MP4tvUF5qtoT6L3q9Py9i5UkqklUkrG7L6SqSVSSqSUFRKoJXwlUkoMNtnujvJ39ZUHKm+1+6O8nf1qEFdOz2IfNavvqnxe1FtnOkgtAOm42mZtqOfVeQV7gnNcOLe2xNjJlpJbJEc4tpzcysZkp4sPoS9sh2WQbazlvvcI1gHouJstm7HdUrcWxkgxDgHA5iGk9FjYtN4cvcVMlJtZzCNA5t98mYt6kjS6l3AKlTYK1VtNpfAFPKb5IBbfcSJPXvKlupjlln8PgjhaWQk8Y6S9xtlkghgI1AkGd5PMvTZTZAhpBFnGHN0vyZAkbyRaY6AlXPUY3jAYJyyXAB7vi5IOt7jcTF93x9Y02lucjpu2RYOBbo3fEFu7nUtimJrl5bT2tTZWqP4suGaZaIzEABxJ1Ekb77uhYGrtYPqOORwubXN72Fu/YA7r3V7WyvMh/JAABvoASJ0JP97DRW9OjLi6Lzv3T0+bcvJqdKzZnPJ57RqOdhcRmEe4ugejXpW7+CfwDCeTUPw2rSW06EYXEmD3F9/Qt28E/gGE8mofhtUEdXERXGGVRERlEREBERAREQEREBERBr/spYuA2mNzJ/iP8A4D0rOdjzB8Vs+lIu+Xnzm32AKDdkHE8ZiywX5QaB4PJj+IH0ra2Bw4pUmUhoxjWD90Afkstr4rtVTpan4NNRR48/3+VWL7m/wXdRXPOBPvTD+Lb1BdDYvub/AAXdRXOuCPvXD+A3qC81W0J9F71en5epKpJXwlUkrG7L6SqSV8JVBKColUkqklUkoMXtXt3eIf1qElTTafbu8Q/rULK6dnsQ+a1ffVDTHqFeUamU2GWQCwuJbETeRE8oWPQFZK8wb2AcsCzgddYmAW82t9077KxmSUl1R2Y8Y4gAZIDeWGjtgZDZLSbdqRYGZUm4BOLQeRdodIntyZvO8aDzKJ4KtSLPcajgZaIIktlwdDZIkA5pDRvJsJWY2bidOXmaMuaS0SJ1a6QJIabSYkXIkn3KE05jCfYvaImHwQDuIlgJLLmL6ucTeIA1KxD9qHEMc0tEh7gHQQNdS4nUCBzyAYvCxmIxhq+5gtIzEkkgmDFhyTuLiRzbrXzODoBpFO4yn40kyCbl5vMzrOq8qqw26PT8c83hh8NljM68g3t6Y6leDJSgFwJN7xrE39QsftrDltgYDZk7yJmRznXpO/co8/EZnckO5rxfnJ/l/wClXNcuxFmmhJdsVA7B4ozPuLoW5eCfwDCeTUPw2rnl9V3EV2lxMUXk7pcY16BBgLobgp8Awvk1D8NqlS5evn/pH/jKoiKTCIiICIiAiIgIiICpq1A1pcdACT3hdVLF8Ja+TC1DzjL/ABENP2EnzLyqcRlKiniqinxaw2ew4na1Fp3Pzu/d5buorca1b2MaHG46tXOjGEDwnH+QctpKjTR8OfFu6Rq/6RTHyh5Yvub/AAXdRXOWDPvWh4A6l0bi+5v8F3UVzhhPgtDwB1KGq2hb0XvV6KyVSShKpJWN2Xxzo1VJqDnRwmxVBaOZB9NQc/rqqS8L4WhfC0I8Y7aPbu8Q/rUMKme0O3d4h/WoYV07PYh83q++qfERFYzC9aVUtIMm0b+a68kQSfYfCN7aoFRzi2DEgawRBJ+LBcPRNlszB1qVRgqBxcTT4xpJaXEaEHUWMXHyjzFaMUm4HbZ4uqKVXO5r4Y0yTkJI/wDyd6jVDoaHURRXFNW0tnYuoHMg3Bab6bv7KM4Oi4OkC+7vnf0nX7Vl8TDBBm3TcRqvGnUa5wuDbSPWJ0nvql37vDK0xODFPC4iI7i6T6P59XOt98FfgGF8mofhtWktrj3tirz7g49V1u3gr8Awvk1D8Nquo2fO6+c3PRlERFJiEREBERAREQEREBRPsi4zJhwye2zO8zRHW8ehSxaz7KuM5WQHRrR5zLj9haqb84olr0NHFejy5sn2JcLlwlSqRepVN+drQI+0uU5WE4FYPidn4dkXNMPPffy/+5ZtTtRiiIV6mvju1T5vLF9zf4Luorm/CfBaHgDqXSGL7m/wXdRXN+F+C0PAHUs+q2hu6L3q9H0qkr6VSVjdl8KpK+lUlB8KpKqKpKPGN2h2zvEP61DSpltDt3eIf1qGldOz2IfN6vvqnxERWMwiIgKS8F9u06IFGtRDml0hzZzZja4zhtufXde0RpfQiVNU0zmG08S9tVvG0zmpujKRIt0AiQvuGZlY4yQYB715F/XcotwTDnP5BytIJLcsgNuJa7Ubp9QpXUY57CWtOUm56JgdFh62VUxh3bWoqu0cUw+7Sd7hiOmi86C83GnrYre/BX4BhfJqH4bVoXFScJXIsOJePPNvQJHnW+eCvwDC+TUPw2qdOzma3vGVREUmMREQEREBERAREQFqLhjQdi9pnCtnM6qxp6G5WEu8zOV5lt1WVPZdNuIfiss1HsZTJN4awuIDRunNfngcyruW+OIho01/qapqxvGF2xoAAAgAQO8FUiKxneWL7m/wXdRXOeEZ71w/gDqXR72yCDoRB86g7exbhAxlMV8aGsEN90p6fRqm9bmuIw26PU02Jmao3aoLFSWLa/tV4X5zjvpKX9NParwnzjHfSU/6az+y1eMN/vO39M/b+2pixUli237VWE+cY76Sn/TXz2qcJ84x30lP+mnstXjB7zt/TP2/tqQsXzItue1ThPnGO+kp/wBNPapwnzjHfSU/6aey1eMHvO39M/b+2jtpN5bvEP61DiBzhdPnsR4Ekl1XGOJaWXqU+1P/ANaxjewTs7NJr40jmzUevipWuinhpiHIv3IuXJqj5uc4HOEgc4XSPtG7M+XjPpGf019HYO2Z8rF/SM/pqapzbA5wkDnXSXtHbM+Vi/pGfoT2jtmfKxf0jP0IObYHOEgc66S9o7ZnysX9Iz9Ce0dsz5WL+kZ+hBz1hse6k0cVUc0zJvaYjTQiNZUxobYp8U3NXp5soJBc2BoYy6bub0rantHbM+Vi/pGfoT2jtmfKxf0jP0LyYyutX6rezWY2lSdhK9NtVjncS6zXSbR/NdCcFfgGF8mofhtUOw3YY2dTDg12LGZpYfdGaHWOQp/gcK2jSZRZOWmxrGyZOVoDRJ7wSIw8u3ZuTmXuiIvVQiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw4QEBEQDw8ODw8QDxUQDQ8PDw8PDw0PFRIWFhURFRUYHigiGBolHRUVITEiJTUrLi4uFyA2ODMsNyguLisBCgoKDg0OGxAQGi0lHiUuKystLS0tLS0tLS0tLTUtLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tKystNzctLf/AABEIASAArwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAwQFBgcCAQj/xABLEAABAwICAwsIBQoFBQEAAAABAAIDBBEFIQYSMRMiM0FRYXFyc7GyByMkMkKBkaEUkrPB0hZSU2J0gpSjwvBUZJOi0Rc0Q2PhFf/EABoBAAIDAQEAAAAAAAAAAAAAAAADAgQFAQb/xAAqEQEAAgICAQMDBAIDAAAAAAAAAQIDEQQxMhIhQRMiMyNRYaEU8AVxgf/aAAwDAQACEQMRAD8A2xCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBMMaxqmo490qJNQE2Y0Nc+SQ8jWNuT93GpBZTiuklRU1LjDSUrQH7nFU1ANQ/cw6wc2M2azl49ualWu0bTpJY75VaeljEjoJYw++4slLd3mA9oRNJAbzucOhQFB5eKYuAmppGtJ9ZoADec75x+AWWaQVLqyvqZn3c1khjjDjfetJA7ielyZyQjZYfAK5i4dslPV1CE5NTp9NYFp/hVZbcapgcfYfvX/AA4vfZWaN7XC7SHNOwtIIPvC+NJKNvFdp5lJYXpdilE8bhVzcR1XOLwR+bnmBzApGXj2x+8pRbb66QsEwHy6VLbNrKdko43RnVcegHL3klaLgflSwiqsN23B5y1ZQQCeQH2vck6S2uyElT1McgvG9jxyscHW6bbEquOhCEIAQhCAEIQgBCEIAQhCAEIQgOKgkMeRtDHEdNiqEzCwxt7erb5FX2o9R/Ud3FVetw4bm8vklkIbsLtRl+q2ybj+S7/D5ywtms2V3GZ33+R+9dyxpzo5FeGU/wCYeP8Aa1KVES9Lxce+NSf4UbX/AFJhEPamVTG64czaMukKVlYmr2qtnwxaNSfSyEc0jaCOleAqWe1N30zTxW6FlX4cx1J8ZCuD45XUzm/RqmWIi+qA8lg4/VOS0LBvLRikFm1MUdS0e1m11uMk53PvCziGmDTe9+ROVGuCdfd276n0bof5UsNxFzYtY087smxzWGueRp2Xy2Zq9L40fHmCCWuBu1zciCNhuF9H+R7Sx+I0OrOb1VK4RTE7ZG23knvAIPQk5Mc1SiV7QhCW6EIQgBCEIAQhCAEIQgOKj1HdQ9xUFiB80/qqdqPUf1HdxVcrpgWSN4wy/Nt5U3H1Jd/hhOhsGtTTH/NvH+xiUrILKU8nFLr0NQf89IP5cS7xKlsSvU/8daLcesMbNfWa3/apTxplI1TVVEo2ZinmxrWO+0e9qmdG9E6yv1nQRPMTHarpLb3XsDq6xyBsQc+UKLkan4qqghlI2aVsV2xiNr3NjD3ka7tUGxJcTtWXmiYj2Wayvuj/AJOqZu+qTuzhtGteJp5Bqmzzz7OlTdZ5N8PlbvIjEfZezWaAeWwsCpzDtRgzHmoonSuaOMC5DfuWXaS+USuEt43taDm1gYLBpzaLnPZY8W1Z031Hu7ETM+x7inkonbc084dyMlFj9YW7k/8AJLhlZhmJSCqjEUFRTlplL27nujCC3M7OMC9tqnvJ/pj9OhjbO1rJzrN1mE6kjmk5Fp2OIseQ57Mr3F0dxYgEchG37vkoTaLxpP7qrC1wIuCCDsIzB96FVmUjGu3mvA/b5p7o7+4ZFO46qrZskjmHJKzUd9ZmXyS5xT8JRlj5TyFFR41bhYZY/wBZlpmf7d98k+payKW+5yNfbaAd83pbtHvS5rMdpxaJ6LoQhcdCEIQAhCEAnUeo/qO7iqpUk+dyIAbbWIIBJIOR4/crXU+o/qO7iqvWSjVc2++1SQM8wCASOXaPim4+pLv8Mv8AJFUDcKiJ3qvrHlvM/UjA+Oz4KbxuhsTkqX5PZtWKX9qf4WLTCRUQ63ttyfz8jvetvhXnHWs/Esbm01km0M4roLXULURq5YrSWJVaq4VtWiLRtHDdBzNTuiHpceV/S2ZbL+eGSTqGbU8oGelx/tbPtgsrkU92jW3s12rcRR1J2XpmD6z2j71iulNGGYjJFK7UjFSWOdxMjL8ndAaQtwbEH00zTlrQMF+Q67bH42WTacUxmka4xlszYmRyu2iV0Y1Wv5jqBgPLq35QMLJG4WKTo00UrjCXhjgS0snY4bBJYX+BDR7l9AvmjD4nSXDXEhu2we5u9v3Z8qwHQjRueaqaZGmOmAP0iRxt5sZlreMk2sOla1iOl9M1ksk0bvozX7kwAB0tVMRfUjabAADMuJsMhtKXEe07TmfeFsqWDY3izbzG2zvRE64B5RdVfRjTKiq3iFjZYJP/ABsmLHCW2ZDXt9qw2EDmurLS+r7z3lNxdaKy97LWSckLSQ7Y4eq9uT2nmP8AYSqE0pIYdUl7SHW12Gz7ZB3I8DkPyII4k6UTQOtMOR7HNPO4EOb8Br/FSyqXrq2luk7jYQhCgkEIQgE6n1H9R3cVUa7aOyk8cat1T6j+o7uKplXJc2GerE/Wt7JL47A8hIBPuTcfUl3+GJ6Gy2ZL+0O8LVoWB1+o4XzacnDlBWY6MSWbJ27u5quWHVC3ONX1YKx/Chnru0rRjlENozBFweUHjVKxCntdX7DZhNGYz6zRdnOOMKvYzRWJyWhxMu/sszNTS2lEqo9qd0DPS4/2tv2wXdfDa6Xw6P0pn7S37UKHLrr+2hituGowvAp5icgIYyfrtVA0i0lpW21od0vsJIFwDa+w8YPwV1qATR1AG3cI7f6jFjml9G+TE5KVgzbK6FjbgXEQ1R8mX9681e2l+sfuvejukFLPG9sIMclgHMcQd642JaeMZhM9MoC11JGLaopTM0nIbpKGOce74LOaOd9LNHKLjVIcRf1mHJw+FwtO0peKgQxAH6TEw7hfJtTESTqN/WsQAP1BbM2UNzPaetSqjS+KRjmus4Fr2OFrtcDcEc4I+S3vCqjdYYpRkJY2yAcmuNa3zWDUFHPUTNgije6W+rqkEbnbK7z7LRxkreMOhEcUcbfVjYI2njLWDVB+AUsXlKGXo+BQuAV1dPJd03CxdZ32T1MqFpeGi6zvs3qaVXN5LOLxCEISjAhCEAnU+o/qO7iqZVSnNpG1jnA3/Nc0EH6wVzquDf1HeEqjVT8x2b/GxNx9SXfuGC4C+wk7Z3cFZ6KZVLB3ZP7V33KfpJFu8Kf0qqWfyldcJqy0gg5g5KdxWASMEjRkRmOQ8YVLoJ9it+C1QcDG45O2czuJWbxNZ9cKOWvqj2UfFoLXXuGx+kNP/vB/mJ/pKwNe4cl0lg4Bn6Jf603l23SJ/iUsE+y7RMD4zETYTU5jvyEtsD7jYrJvKLG91WayO7XyEOlbsMVS1obNH9YFw5Q7mWtRNvGzlDRb4KuY/gAqHF43r3C0gPqyW2E8/OvM3ruGrW2pYzHrzvbG0EuJDRx2uf8A6VueLtom0kZqQTq6sbCwXe5wbcWzHENvMoTCtE2wO3QsLnD1dhAPLkpDHMLlqqcMjtusT9drXHV1xYtLbnYbEHPkUPTMQnuJWLBCzVic2eSZkljHrPeb2/Oubm1uPYQp6E5e895Vb0RoZKenjZLbXaXOIBuGuc4kNvx8V/erEzIAcgTMf7lXOAV0CkQ5dByaWc0h89F0u+zcptQNEfPxdLvs3KeVTN5LOLxCEISjQhCEAlV8G/s3eErPZXEkHYA1zesXOabj4FaFV8HJ2bvCVm5em4+pLv8ADC8KPr9q77lOUxUBhp9ftHfcp+iF1u8H8dVHk9yl6RylIqstGRTKmpzZODCVqxSJZ/1NIerqXlzg5xdckgk3OakMNmcJX2JsKuPLiN5S3uJSFVSHantFBaR/PUxn+aSqvOjVI/39juPfdpXukO8Z1R3JxYHam9J6jOqO5OAsCGhI3BvJboyR9HHL8c12F0Cuo7dwNsnIcmwK7a5dcOA5dhyQDl0HIB5h58/F0u+zcrCq5hh8/H0u+zcrGqmbyWsPiEIQlGhCEIBKs4OTs3eErLWvzH98YWo1vBSdm7wlZJG/fN933JuPqS7/AAxajfbX7QqxYNOC4AlVulHrdoVKUNOC4X+RsVq8S81rGiM1Ittq1FhZLQbcSXfhh5EjhWkDxG1pLTqtAza07BbbtUrHjjT60bD0Ej/lXv8AIyR8Mi2C8T3CFnww8i4FJquPPMD8HEqxf/o07trXN6LO/wCE3e6BzjZ+YcSAQRnsSOTyJvWIk3j0tW07g5o+DZ1G9ycBN6Pg2dRvcEusyGhLsL0FcL2664UBXQKSuvQV1wuHLsOSAK6BQEhhJ8/H+99m5WZVfBz5+P8Ae+zcrQqmbyWsPiEIQlGhCEIBGt4KTs3+ErGoJgXtF8xqkjmOzuPwWy13BS9k/wAJWKUzt83pCbj+S8jJ6L2+0KlqR1lEUft9oVIwuWrxvCCsiz0VVYKTjrOdVenlUhFMtCvuqWTv0znXcdZeXbtk/qUG+Y2SkEp3YdsPGq/IrDuNpFFwcfUb3BL3Tei4OPqN7gl1lwfLq6LrxJVTrN94CHNHlNq7SLi12i19YpO6VwaW7CPzXfI/2V5Vuu882XSuRLsw4BXYKSBXYKkiksFPpEf732blaVVME/7iP977Nytaq5vJZw+IQhCUaEIQgEa7gpeyf4SsPpXb5nSFuFdwUvZP8JWF0jt+zpCbj+S8jL6T2+0KfRlMaT2+0KfRrV4344KydnsJUjTqNgUrRDNamKu1DNfR8KQvabDOy8FOWzNv+mHjVn0cpgXNuE2x2ECodbil/qVflai2i8GWZtMLNRcHH2be4Jwm1DwUfZt8IThYzQl0k6ht2n4/Bdr1AJ4HLZ5b+c35j+ynta2zr8ouQmcMbWODmjMG4zNuhKySFxuVyI07M7eBdgpNdAqSKTwL/uI/3vA5WxVHAT6RH+/4Crcq2byWMXiEIQlGhCEIBCv4KXsn+ErB6I79nWC3iv4KXsn+ErA6B3nI+sE3GXkZxR+12h+5Po0xpPa7Qp7Gtfix+nBOTs9gUzhwzChqdTeGjMLYwx7Mnkz7rzo6MwmWO8O/tPvCkNHRmEwx3h39os7l/kHF8pTlCfNR9m3whOE1oj5uPs2+EJxdZMNV1de3XF17ddcd3Xi8ui6A6uvQUndegoCVwA+kx9D/AAFW9U7R4+kx9D/AVcVWy+Sxi8QhCEowIQhAIV/BS9k/wlfP+HHzkfWC+gK/gZeyf4SvnvDHedi6zU3GXkZ/Se31yn0aY0ntdcp7GtjifjgjL2fU6nMN2hQdOpvDTmFsYemRye190e2hMMc4d/XT/R3aE1x8ecd1z4lm8qP1HeNP3Sk6M+bj6jfCEtdN6M+bZ1G9wS11kNd3de3XF17ddcdXRdc3RdAdXXt1xdF0BLaOH0mPof4CrmqVo0fSo+h/gKuqrZfI/H0EIQlmBCEIBDEOBl7J/hK+dsKPnYuu1fROIcDL2T/CV854QfPQ9dqbjLyKPS+11ynkZTKm9rrlO4ytfifjgnJ2f05U3hxzCgYCprDnZhbODpk8qGhaO7Qm2P8ACO658SW0cdmE30gPnHdc+JZ/K/Ijx/Kf/EjSHzbOo3uCWum9Md4zqDuCVusZslLouuLr26A7ui64ui6A7ui64ui6Al9GD6VH1X+Aq7qjaLn0qPqv8BV5VfL5HY+ghCEtMIQhAIYhwMvZP8BXzhg589D12r6PxDgZeyf4Cvm/BgRNDcH12puMvIpEG13XKdMKaQ7XdcpwwrV4s/ZBeTs9hcpehkzCg43KQpZbLWwXZ3IpuGl6Ly3LUnpC7zru0/qUHgWLNiILjkM06xqua+a7Tk6UW97lW5Uffv8AhX40TvaxU53jeqO5K3SEB3reqO5KXWG2Sl0XXF17dAd3RdcXRdAd3RdcXRdATOip9Lj6r/AVe1QtEz6XH1X+Aq+pGTs2nQQhCWmEIQgEK/gZeyf4Svm3B3O3aG5JGu3aSV9MOaCCDsIsegrCIdHJIpRdpvFJY5cbXWPcm4y8jJ4truuUs0r2vpzDUTxO2slcPdf/AIsuAVf49vshG0e5wxycRyJk1y7D1dpl0Ramz2erIac+IqWhrg6ZrbG+7BoOtx64F7KrzyZFOPpepKH8j2yfGz/vS82bc+4rhiIbNTneN6o7kpdIQHejmu36pI+5K3WYc7uvbpO69ugO7ouuLougO7ouuLougJrRI+mR9V/gK0BZ/ocL1jP1Y5HnosG97wtASMnZlOghCFBMIQhACqOm+IGgYar6I6ogved0Yu+nP57hf1Dy8R25K3IXYnTkxt8saXz0mJTGqod5MeFpX717/wBaO+TuPLb8BepulLSWva5rhkQRYg9BX1tX6HYbOSZKVue3c3ywgnnbG4ApsNAMJ/w7zzGpqiB0AvTa5Zr0j6Xyl9KHIfkj6UOQ/JfV7dA8KAsKY/69R+NdfkNhf+G/nVH4lP8Ayb/v/Q9D5LdODyqV0bNI+pg+ml30eO5naL3lY25a0W58jzBfT/5DYX/hv51R+JJzaAYS8WdSkjmnqQfiHqFss27d0ziHH8Pnld9EmBY7fCN+9fGbAEWO1vHcbLqQsrr/ANPsJtb6PIQNmtVVT/E8pWLQbDW7Ipv4qq/Gj6kI+iVGsV7Yq+/kdQfo5f4mo/EvfyQoP0cv8TUfiR9SHPRKg2KLFX78kKD9HL/E1H4kfkfQfo5f4mp/Gj6kD0SoNihX38j6D8yb+KqfxpWl0WoIyCIS4jZuss0zcth1XuI+SPqQ76JR2g2Gua19Q8W3UBkN9u5DMv6HG1uZoPGrUvV4lTO52nEaCEIXHQhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhAf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhMQEhIVFRUVEhIZFRYVEhYYGBUWFx0WFhYSFRcYHSggGBolHRYWIjEhJykrLy4wFx8zODMtNygvLisBCgoKDg0OGxAQFy0lICYtLS01LSstNy0vKy0tLS03LSsrLS0tLy0tLS8uLi0rLS8vLS0rLS4tLS01LS0wLi03Lf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUBAwYCCAf/xABLEAABAwEEAwkIEAUFAQAAAAABAAIRAwQSITEFQVEGEyJSYXGBkbIUMjM0c6Gx0RUWIyRCU1RidIKSk7PS0/AHF6LB4UNydZTxJf/EABkBAQEBAQEBAAAAAAAAAAAAAAABAgMEBf/EACMRAQEBAQABAwMFAAAAAAAAAAABEQIDITFBBBLwBRMiYYH/2gAMAwEAAhEDEQA/AP3FERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBFX2vTVCm803VOGACWta57mg5FwYCWzyrV7YbPxqn/XrfkQWqKq9sNn4z/wDr1vyJ7YbPxn/cVvyILVFVe2Gz8Z/3Fb8ie2Gz8Z/3Fb8iC1RVXths/Gf9xW/IvJ3SWYYF7vuav5EFuiqPbNZvjHfc1fyqfZrdSqND6dRj2nJzXAg6jiOVBIReN9bxh1hN9bxh1hB7ReN+bxh1hN+bxh1hB7ReN+bxh1hZa8HIg8xQekREBERAREQEREBERAREQEREH5JX0k6mA4EzUqWh7zObt8ePQAOYBafZ2pxiqzS1rYGMO+Nhr7Q1xvCGu315uuxwMalWeyFL42n9431rSOm9nanGKeztTjFcz7IUvjaf22+tO76fxrPtt9aDpvZ2pxins7U4xXM930/jWfbb607vp/Gs+231oOhraXq1CykHkb48NJBxuwXOA5SGkdK/M32a1VAKlJ77j2ucIcwNBDrrmQTOBiOcLs9G2pjq9ENe1x3wmGuBPePxwX57QebtVl4tGDhB5IcI1ggmeZZqX0aKdsqzDq1QcxwPSt1Z1oBkVXvbta4kxqJao17UQObaPm7eZKd9nCpOwnFuzoUTXmrpCsD4V5BEg3jivVO2ViHHfX4MvDhnIEAzjhmpLrTSrtiqN7qangcEn5376VWVqL6ZLThIIkZOHIdYRrW92kK0xvtTV8N2vHavHslW+Nqfbd61oO35uHo/sVrVF7ZLFb6rqLae/PdWLRSDak3i4EjXgIDiScBddMQrGw17fYq1F7qr2vqWXuiid9vSyHuYXQcjvZBadRXMWa11KZvU6j2OiJY9zTBgESDlAHUFK0ZXc6o285zrtGq1t5xN1oY+GCchicOVFfYtjrX6bKkReY10bJAMedblE0R4Cj5Gn2QpaAiIgIiICIiAiIgIiICIiD5W0+Pelt/5mt6FyNMLrtP+KW3/AJmt6FyVJB7hIW60V75kgSSSYETOOQwC1sdBn0ifMg8wsliy50r29+EIL/8Ah5Hd1L6/oK1aGszn1alNtJtQ7y0kOfTZwbwY6HVMMbwbhwscCFs/h+fftPmf2SvLXuZaeA4tvUCJHI6R54PQFKz0l3y9rQdGMc1zbzCDdJaRi+QBePCBk7DGWGlpN0tpWBpMXXVAXFzX5Gb2LMjrgYk5Kuq2yoy80VajQLpF2o4XQZHBg4RAPQo1O11WuLmPcKmbwHECoM7wg54z0ojoHuL77n6MaLoJeQCGsDQHG9DZbAIJx1asQdDrPVAs4do4XahfUpEOvB7MsAQQ1kvbmMi2NSo69rqFrnsrVLrsHtNR5zAZDseEC0AY6hCxV0vXc2k01qkUmllKHkBjDmxsRhIHVyKXdmLMT7bbG0nuFWwU2l5D2tLouti5dAaIAvNccgcTzqjqkOc4tbdBc4hoxugkkNG0DJbXVr/hCSdpJnrKGlGPV+9a0n3YjkKZofwv1KvYeo9UYAqXoUe6HydXsORrX2BofwFHyNPshTFE0R4Cj5Gn2QpaKIiICIiAiIgIiICIiAiIg+WN0NNwoWildPuuk7TUa4ZQwlhB1gyuXbZHD9ld1plwdQpvGT7TbnDmdUkelc+5quIp+53J3MVbXUupgqe5ync5VtdWLqYJm4GiRbaU4YP7JUOqSLRRDs97I58JwOsK43ID33S+v2XKhs9sJNmYQCLogkYtIBBAOw7FnpK12oS+ONTcPR6yq5j7zQMnMxbtu7OhTq7+FScNYP8AUAq5whx1Q4+lIzEilUbN7aIdyn0QVtaWgZmOVgd0YEKvxB/f91Ms0GG3GknkjpQsbjZ6ZEwRj8GR/SZXsUABMOjlaTHRgplGi1uQAnOP8rYprlelQ6zAz33Sxw/ut+iqN15z8HWzaR8ByudI2BlRgdRdq4TIdfZdbLqhmRdMGcdeGwV9ksLGOLjUJdvdW6IAngO1SSrrXN+NfWGiPAUfI0+yFLUPQzps9AjEGjSj7IUxV3EREBERAREQEREBERAREQfM+kGkWSztIIIq2sEHMEPAII2yqQrpN0bgaTSDINr0gQRrBqkghc2VpHlFlEGCsLKwUFxuQ8bpfX7LlxFmqkFhmbvLz7eddvuR8bpfX7LlwbA2Mz9n/KzSpVWqS2nhJa2D5siF4NSSScJ2hawG8Y9S9h44x6Wo52MOYpWimcMme9b1k4dX+FGvDaOqFusD4qA6sQlZ9cx0FlcwO90BLY1GCDtU61aIih3VTeHUt93uDIeHRexERC0O0VVFnFru+4moaYdeE3oJi7MxgceRXDT/APIP04dhYrx+TZ1OpfnM+HP2a0upuvMMHHGAc+Q4KvayLQ08anV8zHf4UtZ0PZhUq2mrm2lYq5BnC85pY0f1OPQruPX4/d9Q7mvE7L9GodhqslG0aIo0gPi2egKStPQIiICIiAiIgIiICIiAiIg+Zrd4nZvKWrthUpVzbvE7N5S1dsKmK0jCFEKDCwVofVdJuwA3Mu27FspvkTIO2MpUF5uOE2yiOV3ZcuQtminNPufDYZgjMRqdsPKuu3IH33S539ly5VmlwXPcWuu1C68y8CBJng4DapUu/CN3HHfva3kmSvJNMYNBceX1LdV0dBwIDMCKhIxacoGGKwK4aIpNJJwvkYnmRn3YMgSYYNmtedYOrA45xtOoBbqdnIMuxd5m8/KvNQSNs5fOPLyIxuVustvLG724yATABOByOal93MugzEyQDyYSq8Ak98cdbhwZGBM6sQV7tJM94HNwAg4wP351C8zWy21XvbDBLdZa6THNsU3QVe5Qe0ETWddj5lKnVe7ovPp9SqKYYTLHmm/VOHnCsrK8ue1r4a9rK7iIhr7zCC9vzuCMNfmRrn09H1ZubcTZLMSZJs1CSdfAbirFVu5rxOy/RqHYarJV1EREBERAREQEREBERAREQfNemqQZQpMGTbRbWidjakCepUBXRbofBM+lW/8AFK50rSMIiwg0PomSWkY5giRzr1Rp3RHLJ51tKwoLjcgYtdI8r+y5cu23MddFSzse8kYNlp+sdZ5DK6jcgffdL6/Zcuc0Zwm74Q28ZxAgxy9KlZ7uTU1tnvuADXOON1uDiNZAugTGOrJb6VkqOa57WPc1vfODSQNeJCvNzdgqOo1atKzurOLm083MApuDt8LXiJMgNMGROwqwsdJjLgpm+ynVtQ33fQ0WcHg8Nv8AqZTJzXP75bZK+f5vN1x8fn5+VxVssDgBea5l7hCWxfH7jFVZMi9rJusHmmP3kr20Wt9S6Hum6MMANgJMDEw0YnHAKqpkOrEfBpgnpW49PG56tHe7RnjmA0XQS4bJPnW5oAOJ3snI5sd/ZYeYDXR/pF5H+5zSR1SFmo00heAv0XZtPwZ2bEdMLZZRgKrd7J72oMWHkOxedGl7Ku9PExTqlvJwHQ5h2Fe3VLrCWTUoHBzHd9S5tg2H/wBXjRlWH72eG25VNMnNssdlsyghGuX1rufZdstmbss9EdTGhWCh6G8XoeRpdkKYq6CIiAiIgIiICIiAiIgIiIPm7dD4Jn0q3/ilc6V0O6HwTPpVv/FK54rSMLCLBQERYQXO4/xylzv7JVDZAbkFt0icBl0K93IeN0vr9ly5ShvlKCOHTjNpkRt5Cs1nubH0nufpU6lmpGiQKW9tDIGoACDsIOB1zK/H93G993Vt7jBwDiMt8AAfHTnygrXo/wDiDa20WUKVqDKbGBrWinSBa0cpbM8szrlURtIMw4Odie+Ek85Oa+b9N+nePweT9yW25Zf72t+b6nryczjC0VgxpcdXnOxV1GpFGtUx4Tg3E6ziYPSpWkC0hrXse0hoN4Frm3iMeC6MuQrw+mBTosDxwqjnSRF4SGwAJ2L6LhJke6/hKrNlmPmIWzRtYb0xzu8c7e3zkD8EnkIwPOF4qGbRWyANN4A2ZGF43PtFQVrMSDvlJxZ5RgvN64RrJiNbbK6z1boJHFOYIPwTt2L3o4A1JAukMrG6cBix0lk6sBhqTunfqG9ui/T4TDOLmgGW46wFH0QPdfqVew5GuX2Hobxeh5Gl2Qpih6F8XoeRpdkKYq2IiICIiAiIgIiICIiAiIg+bd0Hg2fSrf8Ailc6V0O6HwbPpVv/ABSudctISsIsICIiC43Hn35S+v2SuPZUZg7Gk7ayS3pGY6F2G4/xyl9fsuXJ2Sm6qeE3hanAY9I+Fq5VmpWHtI4Tm3sfCUzBHPGHWAsGmDw2Oc4SJbEGc4icZ5JW2tYKlIGo0nOCRIjaEsz5eGFuJBvFvB6SMjq2KIjGrmJqQTJB27YW+vXHucNm6xsZZyXEc+KmPsVZoBNQwRIvU8xtB19C0CkXYNrtJ2cEoPL7W0Wl7yDi+oCSdTpbMdIPQoVktO9vbUbeDmkEYjpHSMFZHR1UNvSCJIBuwJ2TEE8ijPs1TWxruaP7wgha5aYxkao6VK0QIqj/AGVew9SDorCYE7AT1Y61p0U33XA/ArSDgRwH6lWo+wNDeL0PI0uyFMUPQ3i9DyNLshTEUREQEREBERAREQEREBERB817oD7m36Vb/wAUrnnK/wBPngN+lW78Urn3LSMIsIgIsIgutxx9+Ued3ZKpbC8Mc2uyCwQSOKWkH7OHQrncefflL6/ZcuYsNQ0g27jfMkHi7T5vOs1npfaR08KzC3gYOLuDjAxAB1azz7FUWR7RDyLpeYESQejVj0cyxbbOAC1jHUy8gkOBED5vJ6ytjXtvtMcFjIaPnbT+9SMc8ST+Pos7dpAvaymYljDdx77YfMMNs7YFbZGVHcK5SfysLZjWQSVFggGDiXA45YTiNhnXyKTT3q/fLCDGJac5zwOW3CNiNc856R0GkNIVDQbTNEuuxi1l44d7dujg4SOkrnRXs7TJpVabs8b2fMXY9SGtVZ4K0PInAPaDHSS6eoLYNLWnJ29u52keiAi8cc8TOV0d14NlFl9zuXWtnhXoDr4N2YmdcKjs1NpqFwfSdwKxwMPHAfq1rzUdeF59nYRMFzJGOcTdzgHCdS06NFE1JbfablWGuEjvH4Tiozx4+ON+2e93/X1zobxeh5Gl2Qpih6H8Xo+RpdkKYq6iIiAiIgIiICIiAiIgIiIPmfT3ej6VbvxSqBy6HdNScwvpOEOp2u2Bw2Xqhc08xaQRtBXPOWkeUSEuoCws3SsXSgutxom2URyu7Lly9K0nfw5oB4TQzCRwSCJGyfSum3JYWukeU9ZBH91y+jCxlW88xdDjB40RdHST1LNSrfS+ku6HF29hpph18zecS5xdwnQC6DIAxI2mVBrMLGte4QHNvN5RgZjPWFHo1WFjWOeAalYGoeK0GSfQVNtlupVLS2XxSBYJOV1pvHl2jqRnnmczJPRl1iqB10txu3okZZTmtDRIBGRJA5xmFbHSlAvtNR1WJYG07rLxdAOIBLdcHNQKD7Lcpjf3gh73H3BuAIOB91wRdrWaLoLokDOMY6Bilnol+LIO2HCRziZC0NtFOAQ9zXAkXgIJaC4NvMkjKNZ8y9VLcwkb4GvOp9OQ4c+RHQVDamWi3up0DZ3sAaagfN3G8AQIOUwSJ2EjmiaPFFz7zXOa65V4LhIJuOmCMls7uAGFYPHFqAz9qJ65SwOovqS1pa8Mq4DvTwHSZGEdSJzM9o+r9EVhvFHyVPshTg8Ll9D13b1TGymwdQAV5ZgSq6JsrKw0LKAiIgIiICIiAiIgIiIKfSm5ex2l1+vZqb3RF4jhQMhIxjkUL2g6N+R0/wCr1rpUQc17QdG/I6f9XrT2gaN+R0+t3rXSog5n2gaN+R0+t/rWfaBo35HT63etdKiDl6v8PtHEENszWHU9jntc06nNcDgRqK5m0fwWsr3OebVaZcST4DM4nHel+nIg/Lf5I2T5Vaeqh+kn8kLJ8qtPVQ/SX6kiD8t/khZPlVp6qH6ax/JCyfKrT1UP01+pog/Lf5I2T5Vaeqh+mn8kbJ8qtPVQ/TX6kiD8u/klZPlNo6qP6am6J/hBY6LxUNWvUj4LjTDTzhrBI5Dgv0REEaz2FjBAb14qSiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEBUQEBAPEA8PEA8QEBAPDw8PDw0PFRYWFhUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi4dHiUrNy03Ky0tLi0rLS0tLTcuKysuLy0rNjctLS8vMC0tKy8tLS0tLS8rLS0tLi0rKy0vLf/AABEIAQAAxQMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQECAwQGBwj/xABIEAABAwIBBggIDAYBBQAAAAABAAIDBBEhBQYSIjFBEzNRYXOxsrMycXSBkZOh0QcVFyM0UlNUcpTB0hRCYoPh8KIWJERk8f/EABkBAQADAQEAAAAAAAAAAAAAAAABAwQCBf/EACoRAQEAAgEDAwMEAgMAAAAAAAABAhEDBCExEjJRE0FxI2GR8CKBQrHx/9oADAMBAAIRAxEAPwD3FERAREQEREBFo5XyvBSR8JUSNjbuvtPiC5R3wq5OBtwrR+KSEdTig7lFw7/hUyaNlREcBiJWe9W/Ktk77eP1sfvQd0i4X5Vsnfbx+tj96xu+FzJow4ZvmN/aEHfIuA+V3Jn2w9P+E+V3Jn2w9P8AhB36LhB8K2Tvto/Wxj9VX5VsnfbR+tj96DukXC/Ktk77aP1sfvVX/Crk0GwnY4crZYsfSQg7lFBZv520ldhBM0v+oS3S8xBIPmKnUBERAREQEREBERAREQERUdsQeDfCVSvr61nCveIBHw2gHENcx7jwLAPwN0idt5Dy4c1XRUlNZppY3WaHHUY4tbe1yXYnf6F3GdfGx+S0vYC5yroIpbcIwO0dl7jDkNto5jgrcZNOKxtyXTEAingsQCPmY9noVfimn+7weqj9y3EXWhp/FNP93g9VH7k+Kaf7vB6qP3LcRNDT+Kaf7vB6qP3J8U0/3eD1UfuW4iaGn8U0/wB3g9VH7k+Kaf7vB6qP3LcRNDT+Kaf7vB6qP3LLTZvxSu0GUsLieSJmHntgt2kpnSvDGC5PsC9DyFkpkLLAXP8AM7e8+5TMZ5qvk5PT+XmZzIkoqmGqg0owJG8M2N5FmONi9uP8pIdbZq4bF7xkiodJCxz7cJYtktgOEYS19ua4K4POmuLZGRtOFxpeInYu4yHxP9yfvXrnlwk1Z22cGdyl2kERFSvEREBERAREQEREBUdsVVR2xB4znXxsfktN2AoVTWdfGx+S03dhQqux8OKIiKQREQEREBXRsLiGgXJNgFQDznrKmKam4Jtzxjhb8A5B+voVnHx3O6jjPOYzdTGQKERiwxc7wne7/esrrYW2FlyuTqxrALqQny+wNNgSbYeNWcnFle2MYcs93dcznBUadX4pGNHmIXqmQ+J/uT949eJGcunBdtMje0vbch8T/cn7x6r6ua1Gvp/Fb6IiyNIiIgIiICIiAiIgKjtiqqO2IPGc6+Nj8lpuwFCqazr42PyWm7AUKrsfDiiIikEREBVY0k2AuTuCopWCERMu7B78SN4buH6qzj4/Xlpxnn6ZtdQ0gj1nYu9jfFz861pcoEvNhcbB4luOu8WGAWH+FDdy9HHjmM1GHLk9V3ktiqHu2Cy2oxy4pGwBZLLtVa130Yc9p3hzT7V61kPif7k/ePXmEJ1h+Ida9OyHxP8Acn7x687rfMbukvapBERYWsREQEREBERAREQFR2xVVHbEHjOdnHR8n8LTdgKFU1nXxsfktN2AoVXY+HFERSmbNJHNVMjmBdEWzOcGktcQ2NzsCOcBSItFK1OShFVRxE8JDK+F0UgwE1PI4WcDy2JB5wVOUmav/cS6t445ZBGwkaIYHEN03HAkgbPSpk2i3TnqSl0GieUao4th2yu3G31etIGukcXvNyTddDnJkqQkPLSGRxs0sRZmk4gHnBO/nWlTUUjmtLGOcHP4NujYlzwLkAbdmPIvQ4ccccd7YeXO2kTQFgnNipCegljALmYE6Ic1zHt0vqktJAPMVrZSoJoxpyRuY0PMd3FuLxfAY47DjswVmOUt8qJjlvw1WvV4ctYFbtFRvkNmjxu3BWZanep0rT4vaACTpDAYr1DIZ+ZHSTd49cjQ0TYRh4R2u3ldRm3LpROFhqTztFt40ycfSvL6vOZWab+mx9MqVREWNpEREBERAREQEREBWvNgSTYAEknAAK5Yavi3/gf1FB49nUfnY/JabsBQql85eMi8kpe7CiFdj4cUU1mf9Lb0dT3MihVLZr5NNRUBmk9rGte+R0Zs/QAN2t53bPOVNHRZlUhnijZK0EwSCalc4HUbcabT/STiOcX5F11QxrWus0ynhpHPsbFjncwB3YXUMamJg4Jl6dxYXNeZAWAgXDXXAsDa2G+yxUE0kzdOIPJ2FwNsTuvy8yt+n9/EU+vbekbpNbC5vBh7HxWc8vc1spJjc4WFrPaLcxUbRuDH/wAKQXSR0Ug0A7Qc6plLZJGB1sHaOr5iFkyLSPlnmEgkDeDIeSDcSXbog3xvv8yw5XzbMckRBke2SVoldvbd7QDfbex2q3H0y+m3/wBcZS+7TWY/g4ZdGlfExzoWOdNK7F+mC0MaWDScLHxC6jc4mufWzOcb/Oua2+JDBgAB5lLmlcZXtZwlTJE94D5i58dM0EgW0sC7DacMMAqim0HkyNPCXu4vuXE8uKtxymOW/wC/ZVZuaR+Tcil2s+7W/wDJ3uXQwwNYNFoAA5FSGS6zhVcmeWV7uscZGJzVN5uRaMLje+nNO7ZbR1yLc+z2qII6ipzIPEDpJ+8esnN9mnh+6QREVK4REQEREBERAREQFhrOLf8Agf1FZlhrOLf+B/UUHjecvhxeSUvdhRCl85fDi8kpe7Ci2QucLta5w5WtJHsV2PhxVi7bNTJpaANLg5ngyDlLgNVl74G1/PdQGQ8naTuEkBDWHBrhbSf7h/u9T8kx2jaDfzrTxcdvdVnl9k5M90tRwE0TZIy06bzHovhFidLhBs86iKqSOOnp/m5pIw2Rt4pAxol0yXaTdA6xFjt2LWy1lKSZwHCyaDmC7NN2hpDbcXsVoOqJWNJilkidhpcG9zNIc9jir8eK6n/TP9Sb06EyOdNKOCcx4yYQWl4kkdrRlpdYCztEjC18AqPle9tE91yeFka42OAE4aAeTABcpBUyNdpiSQSY64e4PN9usDdb1NUyHV4SSxeH203W0730rX233p9LX9/bSc8u39+XVzsZwbrse4CrqDJwbw2zi7VLtU3w2edYa92pENBzLMdo6bw55YThfAWG2y1ad72nSa94cdrg4gu8Z3q593G7iXE7S4kk+dVTHVTvcI32W/BJdaAYs0GBTKbG5O7RaSeRSea3FSeUz9pc1l+o0Wtb9ZzetdLmtxUnlM/aWXmx1JV/DfKZREVC8REQEREBERAREQFZKzSaQdhBBtzhXqjtiDhI8jwv4OV40niCna0Oxa0CNu7eVM00DQ21hcLQgdqx9DD2GqRp8RfkwK0TtjGO3edYKimadwUZUZLBGrh1KbexWli7xzscXD4cXVUzmGzhzg7isYxwO/BdbWUYkaWnfsO8HlC5epgLHFp8Jv8AyG4hbOPk9c/dRnjZUU+PRcQtmlNiDyELLUR6QvvG3nCxRciu8updzTqGgWQrSoam7ADtGCzGdZbjdrZezOFewLWbKs8T8VFiUXnO/XiHOOsLuc3mAQ4DwpZyec8I4foFwecYvLHzaPWu+yBxA6SfvHqjqfbh/tdweakURFkaBERAREQEREBERAVHbFVUdsQcXEdVnQw9hqkqQ6h8ai2nVZ0MPYapKkOpbnWr/hGDf6lXFyq1yscFRqhO2ZRWXqHSZwjfCZj427x+qlGq/DYdhwKnHL03cTZ6ppx9DBwl2Dw7FzOflC1JYLHkI3LdjHAT2+zfgeVv/wAW9l2eB+tEbvdtAGC2+uzLt4rN4n7oEOLSrjUrY+L3EX3nctKanLTirZZTvG1HUrepZ7lQjTZbdLNYhRlg6xybWXONZ5utd5kDiB0k/ePXC5cGMTuUjrC7rN/iB0k/ePXn9T7cf9tnB5ySKIiyNAiIgIiICIiAiIgKjtiqqO2IOIZ4MfQw9hq3qZ9jzLSj8FnRQ9hq2I1rntjzsu3Jfy3TKjXLXBV7So06mTYBVSsTSr7rl3tzeX47S6X1me0YdVlGUTrPF1OZxN8A87m+kf4XPxDW8638V3gzZ9s3StbgtStp7hbVK64CvnbgqZdVbe8crLHYqgW3UN1isRatcyZre7enOnBGd7JNFdzm/wAQOkn7x64WmxgcPqyRnrC7rN7iB0k/ePXndV9p+W/pbuVJIiLI1CIiAiIgIiICIiAqO2Kqo7Yg4qEarOih7DVlBWKM6jOii7DVcCtmHtjzeT31maVkaVrgrI0qbEStlpV4WFpWUKurZUZl9vzbTyPafYQuZvrHxrqcuD5o/iZ2gucZFcnxrZwX/FRye5uUtSQt589wtCKJZ3NwTKTZMuzRk2rG5ZXBYZF3FH3buTReOQczD6HBdxm8PmB0k/ePXCZAfpGRvKx3sxXd5u/Rx0k/ePWLq+2T0ek8VJIiLI1iIiAiIgIiICIiAqO2Kqo7Z5kHER+Azoouw1VBWNp1WdFF2Gq4OW3D2x5fLf8AOsoKvBWC6va5dOZWyxyzBy1GuWQPXFizHJhy075o+NnaChY22UlleTUA5XNHtv8AosPBK7C6xU8uXdYxXuOCuEaPGCbceppObitSqOC3JXWCi6qS6uwm6YxdmvUWqC36wcPYV6Vm79HHST949eU5E1ahh5XW9K9Wzc+jjpJ+8esfWT/KV6XTeKk0RFjaRERAREQEREBERAVHbFVUdsQcFfVZ0UXYaqgqwnVZ0UPYagK38fsjx+a/qX8soKvBWIFXtKmolZWlXaSsBVs0oa0kmwAJJ5AodbaNc/Ska3k1j/vpWYvUfSyaZMh37Ad3J7Fsh6tuP2V5eWcPVk0mCsDlq1k1lGOO6iRp1s9zYbFqXVXvBQLVjZOy2TSuT2/Os/EOtepZufRx0k/ePXmNKLSMP9YXp2bn0cdJP3j1g67zG3pvFSaIiwtQiIgIiICIiAiIgKjtiqqO2IPPXnBnRQ9gKjSrZjgzooewFQFejx+yPE5r+rl+WcFZGlYWlZGqaiMoKjMrz3Ij3W0n8zRsHnPUt6WQNBcdgBJ8S56WTTdY+E/Wf/S3cOoKePHvtZiyxT4YYDcsomWGytctGonUbgmUTlOqsbDb1Laa4rQZTl73E8q58eE4yRqskKztmVailLVrBR3jvtW9HUDhYx/Vj6LL1bNz6OOkn7168djGuw8j29a9izc+jjpJ+9esfWXdjV087VJoiLG0iIiAiIgIiICIiAqO2KqFB5vIcGdFD2AqNUU/LDGVYpJCGPMMfB3Ng+SO8UsY/qBYDbfc8ilWr0eKy4R4nUY2ct2zMWULExZQuq5jQyzOGssTtxP4W49dlFULCQXu8J5v4huCw5yT6UhA3ag8232kqThZYAcgCtxmov1rFjLFglhJ3reIC16iSwwF10ibWQRaLedZI2WC0qStJ0g8bLWss7a5nOPGp0XbLUNuFEPZipgSNcNoUZUN1rNxXWOt90xZBHrN/EOtet5t/Rx0k/evXjNblFsDo2HjZ5GRxs/mN3AF3iAubr2XNj6Kw7nmR7edrnuc0+cEFYOus9Ukbeml1alURFhaRERAREQEREBERAREQeZ/Cb8GXxi4VFO7QnbclmkGh7ja7m3wBNhybL3234uDNDLcQ0BV1IA2B0Ek5HNpWcPavoBFMtnhzcZl5m3gozcy599n/Iy/sVf+nsu/fZ/yMn7F7yin15fKPp4fE/h8+jMjLEjsaqW+Ju+klaOXaWq4ZqZa+9z/AJKX9i+gEU/Uz+an0Y/DwH/pXLf3uf8AJSfsVrs08tHbVz/kpf2L6ARPqZ/NPRj8Pn12ZGWNEO/ipbEnAUkulfnGjgrTmZlg/wDkzfkpf2L6ERPqZ/N/k9GPw+em5l5YGyqn/JzftQ5mZY3VM9z/AOnMPbor6FRPq5/N/k9GPw8QzO+CKc1Lamvlksw31n3lk3cpIFuUg8y9tjYGgNaAGtADQMAAMAArkXDoVkrrAlXq2RtxZBrGoIwNh6ORU/iTyj/Qrv4c8o9JQUx5R6Sgzwuu0HxoqxtsLKiD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSERIVFRUXFRUXFRcXFRUVFRcVFRUWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARUAtgMBEQACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAEAAIDBQEGBwj/xABMEAABAwICAwoJCQYGAQUAAAABAAIDBBEhMQUSQQYHUWFxcoGRscETIiMyM3ShsrMIFCRCUnOCktE0Q2LCw+FEU4Oi8PHTJWN1k6P/xAAaAQADAQEBAQAAAAAAAAAAAAAAAgMBBAUG/8QAOxEAAgIBAgQDBgQDBwUBAAAAAAECEQMhMQQSQXEyM1ETImGBkbEFFKGyNOHwJFJyksHR8SNCQ2KCFf/aAAwDAQACEQMRAD8A7igBIASAEgBIASAEgBEoA1jS+76gpzZ8wJ4rW/M4gHrQBQz78mjhkXHpZ/KSgACbfwohkwnpf/40AAzb+1OPNhJ/N/ZAAUm/vc2ZTi/8Xij8xd3IAFl37Ks+ZDD+fWPsBQD03IX77GlHW1GMF8vJSm/JaPFNyS9H9Cby41vJfVDGb4Omn5MeebGWD/c1MsOR7RYkuKwR3mvqZk3R6ef9ScfiaO8Jvy+X+6yT/EeEX/kX6/7Efh9OPzdIOWoLeyROuEzPoTl+KcIv+/6JkTtG6Xf572fiqNbtuj8pm9P1Ef4xwnRy/wArIZNAaRGOtTuPBrMv1li38nl+H1CP4vwz/vf5f5j4d1ukdHEa5cwAg2cdaJw4rXAHJjxKGTHLG6kjtw58eZXjlf8AXodn3BbqhpCAvLQyRjtV7QbjEXa4cRHYkLGzIASAA9JaUgp2l88rI2jMucB/2gClj3eULj4kpfxtHcbFABTd1dKfrSD/AEpT2NKAJW7paQ/vbcrJG9rUASt09Sn/ABEfS4DtQBOzSkBymjP42/qgCo3Z1p+ZSincHSP1Y2arhe8j2sz2CxOOwIBJt0jidduTo4WyT1r5Ji0jWIJa25Ng1jRiceEpkkX9nGK1Ctz+gNGVLPCQ0d7OLXNfJKHtcADYgO4CDdXioNbfqcrj/wCz+hYu3DwYllPFzdVzrcXjFUjGL3SOfI5Qrlt9/wCRNBoKGO16SAZZwR61sjYlt9ivHk35V9Dx+KxZnceeS9Hb2+NffdE2lo2Mhe5jGNFmjBjG464tkM811XGrieRgjkWbkyXa9W3/AK/qUDKl5wBPFjks5md/s4LWg1pcGl2sS4i175C+IHAm1qyVRbSrQnppScitQs4pFpAcMUyOaWjDaGlDy4F4bYA42xxta5wBS5MritFZXBi9q3cqom+aQgXfUNGeALTgLAgWvjcn8pUPaTvSJ0LhcNLmypfT+v8AgFfDAHyeWbqtZdnjXMkhjuGjVuLBxzyw5VvNOlprevwVjeyxqUlzqktPVuttPRlXuppqeamhjGJc0io867XutqOF8Lg3y4FsYPJKUMnhexk8kcMceTC/fXi31fo/12M/J91g6oY7NrGtI42veP1Xiyi4tp9D6yMlJKS2ep2hYaJAHlrfPqXzVFRK5zyGz6jQ5xsBYmwbkABYLVsYajTUwOxVSRhYwUdsrjkJHYtoywyNko82WUckjx3rTLJm1NQMqib/AOxx7VlILJBpGrH+Ik/2ntCKQWXO5HSdS6upmSSlzC91wQ3ZE8jEDhSZIpRbOng9cyXwl+1mz6b0eypa+CQloJ1g5tiWuabtNjmOJTTOqeNNUEbnNGto2kMcXuL3SOeQBdzhq2DRgGgC1lWJzuHKqRaHSsnDja2WWWXUnpEuUjmrHPN3Yn+5Pei3Ez2UJ6Mqt0AL4w1uWuHO6AQO0+xWw5taZ53F/h/KvaR6afL07fYoYMDY57F2pnjyQa2bZZVshyVqSNfbDJFhy3qWEB8W61M55rUlc7FZYqiq1FggZKjJY08PWsoZSaANKwERuN8NZvR0IivfQzncA3eLbaorRx/1HrxuIVZZd2fWcK7wQfwX2OxKJcSAPK+7wftXrg9wrehhSaPjwHIrIVl1TwphQiKmsMSTnibX9iEgsk+boMsx82QFlhuagtWU5/jd8N6XJ4H/AF1Ong3/AGiPaX7WbPObuPKVzJnpyi6skiLsLbeEhOmQmlWpIY3/AGVXVnN7i6ia4jZ2LLezHUY7obLiMsErTQ8ZKWhSV9PbEbF6GHJzI+c47hvZTdbGGHbew411JnlSWtBLHHDzT29iaydIL+ebLW2I5iawmQ7Z1rAocJAtN5R5kAWWCi2DVtS0xuscnNv0nYVsGudGZMclB2Gbx/7TXc7+o9ePxPnT7s+r4P8Ah8f+FHYFA6RIA8sbvf8AFetj3Ct6GFTowYDkCshWbK/SNLSU7JHxtqJ5BrBji4RQsN9TXAsXSnA6t7AW4Vjl1MooYd0oLsWmO5yJLovyuxZytPsuELIgcDZKdwe0Obkb4bQRgWnk9oIO1UEJpINU2PsWAF6Ab9Kg559xyXJ4H/XU6OD/AIiPaX7WWlU6zzylcp7C2J4XXHctTEcQqGe/ilVxvU4uIjS0MuZirSicePLW5hoBNuEYdOSIqx8k3B2itrG4cqfC6ZDjlcdSvgHjNBwFz7cl3xZ87kTVhUrBhY7eBPIjC/QRNnY7OopbHa00HeGW2ZyDXThLzDrGxr5zbHC+zbZZZSOOmA1IIjkx+x7yIaSQZdUbFvEuvPWnjHxHry+I82Xdnv8ACqsMF8EdiUS4kAeWN32dV64PcK3oYUkJtE4j/Ld7pVugvUO3YwCOqkg+rHM8DjDdUNB/CknurNjsUNW0OfcBrRhcMvqA3sLXJWTST0NjfU3Xc0wiNwP2oiPxNe2/S2NnUrR2+hKW5c1TbOIIsRxW47+1CMZNoUfSYeefdcly+W/66nVwP8TD/wCv2yDKuTx3A8JXGe1yqjFLJY26QmJFgw7Qnhqc2a0tAgE5hdUdjyMktdUCOkIAI2Ht/v2rFoyjqWOmRyyAi9v7YojpJ0bOKlii5Pv9gSSIZjBdWObrU8visEbuJiWwseMK3NZwrHRgAWx6Ey2EnpIgkcsY0VZEZUtlVEja7NKUaHy4wzfgP+5PDdHNm0+pfbw0o8PWNvibEDhAkeCfaOteXn82Xdn0HD+VHsjsykWEgDyzvgCxqwcxW2PLqfpZb0MKKL0Lvu3e6VXoL1Nl3W0okq6i+2UnO2IAsQdhTUmqYqdFVTaJjaQXazrZBxGrfkAxSrGhuZl/ov8Ae8sHuyqnUmyzqz4x/wCdiEBJoj08RH2v5SlyawZfhHWdP4S/ayarmBe7lPauZwPThmT0IBJYg8HYVg7assoJdqELONqgls9geBdkNjyMsan8RtUBawzsMOjEoaozG3NtgsbsONL1ss1cXF9NTBbdVUqOScHJ0tmQzNLg0XHfgrQlbZxZsbjCL0/4MtZfBX6HnSdS1IJ4jwIZsHRCYDwFLRVTRgwEbFlDKaYyVrjFMADkz300E+ZEcrVW/Ut94ttq6pH/ALb/AI4Xl5/Nl3Z7/DO8MH8EdvUiwkAeXd8fz671/wDpBb0MNei9C77t3ulV6C9TY91NXqVFQ7PVfc8rvNHsPsTSlSFSs12m0+7WtI0apOwWI488Uiyeozh6G2aMkDRM5xAAMBJOQGrKblVJsJp9IRT3dE8OAwPnAjguHAHFYmnsDTRY6I9PFf7XcUwLRN/B/YxpGIte52zWN+48i2eOnZPhuL51yvcGedoUpQ6ndhzt+6wumnwUHGj0Iz51a6BL3YZ4FUxt1Rz54q02TeGsrv4nHBO/dRBHnxKTdo6VHlfccODhy5UzfUnHHvEZAcevuV4PWzzs8aVdwrwO0cGXeCutHhzetMzHKMiFqkTyYmnoSOiFsP8AvpTkuZp6gZaFh0JsZVPAjlHEz3lsfGiU0+Un3jv26q+7f8dePxHmy7s+o4XyIdkdtUS4kAeXt8jz671/+iFvQw16L0Lvu3e6VXoL1Ljdkx3zmewuDI024S1uXLiCOQonG1oZF0UcFM6aTAE43c4tLQ0D7RP/ADgUqb0H2NgqhalqQNnzYDoEgxV5bMkt0Q7lSfDz3t6Nvm5eeMkmI2ext2jCfDR2z1u4qwqa1v0f2HVtVdzgQMzgrt3oeZjxRg+a38CuLiMNmxRqj0lPn1/RDoZLHDo/RQyI9Dh5vcsmPuM1NOnZ1SgnGmJ8tiqNogotqkPY66Wx+W0SP4tqaImShrxjrdfL/dVx6aP5HFxSTXPHVPfv/MmbKuuMzxc3D6tidMbYZKu6ONxqWo0ynYsTZSeOLVkkhFiRntCoc0U7plfU+jm5Ge+sj4kPk8IbvFfttV92/wCMvIz+bLuz6ThvJh2R29SLCQB5f3yPPrvX/wCiFvQw12L0Lvu3e6VXoL1L/dZV6k9QbXs5uGwlzRYewnqWylSMirNbptPSB1pBdt8siORKsr6muC6GxTsJpqlozc6lA4PG8JbLlTyWjET1QbT6ANDWTwGQSWhjcHBpZcF4+q7EKWCfOm/voUyx5aTLjR/pWc7uK6CSvWvR/Yr62S0jrHae1O36HPCN7oi19bhU3qdEbg76GWvw5FNo7ISp6sLpptim0dcZpBbjcIQP4D4X5J3RJWmGB9uRZbRlRluNLukHsWyTeqMxuMW4yWjIZxbk2FdOLJ6nmcdwrTtbEcFRqldEJ6nk5sLa1C3ztGIGPLh1Kloh7OWzYJDIbkrEykoqiOQXjnxsSGG349hTQ8aJZdIltvEwfSqx98Q3VtyyuN7/AIfavK4jzZd2fQ8N5MOyO0qJcSAPLW79xJrL4n59cnP92FvQwpaFmszV4WkdYt3qy2FZNpkvmHhQCC4svxSRjVc0nZfPo40SXMjE6K2k0fJJIPEIsbuLv1UuVydD2kbfSU+vDIGu1dZ8fgncVOLNfyF5d+XkV97IltXVL56iSplaxrnsYzVY57wA03Li94BJJ2Wwsp4cPslVt93f6mylZNoz00fO7irLcVuouvRgFfbwjsNp7V0cq9DyPaT9SEYKbjTOyObngjDyL3G0e1Rnoz0OGfNDXoPvtSF09KCGTLJRHx5NaYRFKEtMu5q6YfDIhT6MV4b96BkjYtUuVmSxe0j8SMSfVdkrcl+9E5PzKivZZXoRTQauIxHXblVccr0e5xcVhUVzRdx+3f8A3FGCdi6EeXNhkVOLZKqRzSyOwepi1Y5sPqs2fxrYqpoWcuaP0LTeG9PW9HxHrx8/my7s+m4byYdkdkUiwkAeWd34xq/Xf6dlvQwp9GHAcgVkKzYKS4va3jDxmubrxvtkXMuDcbHNIPKtFJDQNcfGs1u1keu1ruJznuc63ED0rTLDwegZADAADIALTDN0AEaPPlWc7uK1bmS8L7FVpF3lHcp7V1VoeLetDGPusaspjycmnQxJguXIqaPW4XJcWluPDlOzrrqOZIm3QjdOyZkiVbFcj95NBcEtkkjowv0DmzcPWp2dKjza9Rk4viDirY8jicPFcJHLqlqCtqi3/pdanZ48sLg6RPBUG+Fvbh7VaE31OHNhitUWLXm18Fc4WldDZ3AxTcjL/mWx8cSU1UX8ifeInb86rY8dYgOHBqiV4z4bkLx+I82Xdn1XC+TDsjs6iXEgDyzu+zrv/kX+4tWxhT6NyHIFZCsv6VMKw5i0UkCAMhABND6RnBrZrY7mPZ9mU9e8eEcOM9q7DxZLUgY7HBYY06JntuLqGaGlo9DgMqU+V7PQa0rjPeS0Mgp0c81qPa9Mic3aCo3rJRMxZmmFRvUJKj1sWRTWhK111iKzVmJGa2eB4f1VoTo4OIwLJ39RjGEHVyK64SvY8LPjcH7yLV8gtYDYAupSPLePWxjW+Sm5rPfTx8cSGZ+6/kP3im/+oVmGHgzsw9O7avI4jzZd2fT8L5MOy+x3BRLiQB5Y3fHGt468k8pZdb0MKfRuQ5ArIVmwUqYVhrStFHgoAwTiOnuWAHaJlBdTix1vCyl17W1XAeD9jT1rY+JGS2fYC0hVESOAvmeLavQPn5QTlqCh7Tm3psO5ZobUktGZc0W8U34tqnNaaHRhk7tkAK4Jxpn0WDOpIRSovNWjITo5ZprUkjfZbfRk/Zp+9H+u4THIlkkyuJyi7QQyS6lKNHp4sqloEMcsTNcejJS0EdnEq450zi4rApRHOfZuHDcrujNUfPZMDUrHxTgxzc1ntfZdGOVyiebxGNqL+RabxB8vWjjHslkXk8R5su7PpOF8mHZfY7GpFxIA8sbvc6z17+mFvQwp9G5DoVkKy/pimFYYwrRR4KAM4bUAF6OA8LHiLa3CAcjsPctjujHs+zKvSDvKuH8R7V3p6HhTXvELCsZiJLXKlJWdEHSoUjetI42Xhk5WRArllA9fDxCapmbWSpnQ4jxim5ujIvE7uO49jkcvoIsqTqS1JC8jJZXqU5nvBhVPNflU5Ro78OX2i13C2uSopJaEzW4KymefPAlqCOFmVFv8uP4gXXgnckmeHx+BRXMtrNh3hnXmrTye2SRcefXLLuz0OHVYYL4I7IpFhIA8sbvs6z13+Rb0MKbRxwHIFZCsvqYphWGNKBR4K0DN0AEaNPlY+d3FbHcOj7Mr9JNPhHOBwub8Oa7lseJLxUyBr1jYKDQRA3+yWhmxzilGBZ8CpzR1YZaGGSWUJQPRx56VMkbY5HoU9tzpUlLwskHGtTrYWcVLcy4YJuayXsuVaMy2UhbKAYuIcXTLGCQOC52qPVhNTWhPG+y1CNOqYph5Ko4fBM+IF08O7meP+KRUcS+LLreB9LWfh+JIoZfMl3Y2Dy49kdmUyokAeWN3/nVnrp9xatjCk0dkORWQrL2mK0VhjStFHgrQM3QATo3GaMfxdxWrcOj7Mq6t5D32+2fYuyL0PInFORiKy0V2FB6wyjJaigUgWfMqUi+MgcUh0J0YDkrjZWM61JWVBU+U6VlYQyUFLysssqaJwLhbdGOKY1hLcskr1KQThqHwz3zU3GjsjlUlTHl3kqn7pnxAuvhmrPE/FozpN7WX28B6Ws/D8SRc2Xxy7srh8uPZHZlMqJAHljd/51Z66fcW9DCj0ecArIVl5TFaKGNK0wcCtMM3QAVoo+Xj5/cVq3Do+z+xWaTBErhxnHlK69jyW03ZC11lopNE4nJFWY6QW04ZpqJ3qQvh1snJHCy0cldAaeItU5Ro6ITUmQApKK2ZsdixodSJ2GyKSQKTbCmS2xCk9Tri2tSVrwVPY6oyUhzDYoY8VT1CGv8AJVP3bPiBU4fzEcv4krwfM2T5P/pKzkb8SRRy+OXcnh8uPZHZ0hQSAPK+77zqz10+4t6GFFo/IKyFZeU60VhbStMHXQYK6ADNDutURc/uK1bh0fZ/YFr52mVwI+se1dykeFODTIHRjYt0MUmZYLYbEDMly4kANDwlHpie8HA7VjHimAygA4qTOmFtGWvHD1LLHoY510m7LLRD2PI2rGbFk8cyRovGTDIn6wspvRnbGXMjMb/J1P3bfiBVw+NHJx1vD8zbvk/ekq+RvxJFDJ433YmLy49kdoSFBIA8rbvvPrPXT7q1bGFHo/IKyFZd05WihLStMHXQBm6ACtE+ni5/cVq3Do+z+xV6THlX8Osbda6keVLcbTzXCZMnKFMn8ItszlE54+tce0LbRqi+hE6cbMuNK2UUPUwZL4pGyijQyrx6gekZpZaj49ABpspHUEMPGtMJGuCAJmFIykWEwvSSR14pD5ZPJ1NtsTbfnC3C6yRZbJj9p7vqbn8nrz6q+eqz4kijN3Jv4nPKHI3BdNPodqSiiQB5W3fefWeuH3Vq2MKGgOAVkKy6gK0VhIK0wddACugAvRJ8vFzu4oQLr2f2KvSLvLO5x7V1HmMFhdi4cDj1FBrWiCWPTJk3ElY4HxT0LQrqCuNjY7MEpZbCD+BYNQ95SsZAUgxUmXjsSEoNRnWWWNQRG5YaTNKxoeL1Hvd4sv3Y94JF4kelw7vIjfPk9+fVc1nxJFBHPxHmy7s7StIiQB5W3e+fWeuH3QtWxhr9CcArIVlzAVooQCtMHXQAroAK0S7y8XO7ig1f6P7FZpR3lXc49q6bPNa1K582q8kdKVumUjG40FMlvYpkxHEe4nWBCazEtCWvGIPC32jBEgxbELAsKEoWMEBvOKhI6ooy5yVsdRHBp2LGMkEU8fCtRvKWDAOBYUSIpRdstvsD3gsXiR1cKn7VG+fJ88+q5rPiSLnWxLifOn3Z2laREgDyru99JWeuH3QtWxhr1CclZCsuICtMCAUGDrrTBXWAFaKPl4+f3FA0d/k/sVNe/wAq/nHtXQmcE4gsrLk2K1qzItoxA22ZSrQaTvoGNenTJ8pJUG4bxX7kzCGjZHdK2OkJruxJY9Azjioy3OqC0JYItYpHuWhEKLCgeiWNlsSmSJydBkTbjBNyi842WnsyXmD3gsaqSo7OAbllVm7fJ89JV81nxJFyx2F4nzp92dpWkBIA8qbvfSVnrZ7AtWxhr1EclZCstoStMCGlBg66DBXQAVonGeIDMu7isew+NXNLv9mVGkorSuu4Dxj2qsSE0rBg9uYus5mmb7KLj8TMTcyVVLqc8n0RLFLdCYONEznXPImbFSpGXOStjpEQcksqkhrWFxsFORaCLKKHVwspN1uehjwuSuJKyMp00RnCSdBEdPfYmJuPqWMUAAstchVi1sErD4k3MHvBZHxI6uE85G3fJ89JV81nxJFyoTifOn3Z2laREgDynu99LWetu7AmWwvU12jOSojGWsJTChAcgDOsgwWsgArRLvLxc7+UpZbMphX/AFF8/syk0mbzP5x7U8BcvwBkxJBdIbtcFWGqaObLpJMiaUqZZoIYFohhz7YlLY6RNFTSOxDHW4dU260pRRZc6PoQwXccT1rUhk3sg51Ow7SscIsrjz5IbEsNO0ZF3WP0Qo0EsvNvX9fMnEbeF3SAfaP0Q18Qje7RIGYDI3KlrZ1aOPoVtW27JuZ/MFVNJxF4SEnxCNp+T76Sr5rPiSLjQcT50+7O0rSAkAeU93vpaz1t3YEy2F6muUexVRjLSErRSa6AM3QAroAstzLQ6spwQCNc3BFwfEecRtSylyqy3DY/aZVC6tP7MPrqCnD360LDdxN9UDFS9vLol9D0o/h2Grm39TVNL0wY+7BZp2bLjOy6XJS2PGeKWPSTv4jIAbYA47VRSpHO4OTvoPjjssNdh0FC92yw4T+mZQ5IeGGcuhc0MDIsWMBf/mPAcRzGnBvtKTmOmOD1D3VEh857jynuR7T4jvha3VEJ8bzm6w48LdIWc/qasNeF0StY0ZEdV0cxqxW9SR0jRsBWe0G/LLrYM6oJOAsOBK2XUHVWWkLbNBOalKbZ1YuHUVb3Aq2wimt9jvCI25Ky+BRjljRffJ+9LV81nxJEkPCjyeL8+f8Aif3O0pjnEgDylu89LWetO7ky2F6muUiqjGWcS0UmBQBm6AFdYBa7kj9Np+e74b1PN4H8vudn4cv7THtL9rLuvjBkdfhPaoKR7Twpgj6FrsRfA34R0hPHI0c2ThFPVg9RQyZt1XcItb2Kkci6nPl4bItYpP4bDKeiablo8YZtOY5OJa5uL1MxYIZY3Ddbp7oI1bLHOyqwcqHNFsTn2JHKy2PFy69RF/CboUkgeGUtWQSTHYjmNWJdReHI4uRFsb2aWxhjiTgiw5CzomfWcOT9VjkNDDXvFg8YYFEUJldIArxaKXmd4VIp8yMwOKyxL35Pvpavms+JIpx2PL4rzp939ztK0gJAHlLd56Ws9ad3JlsL1NbpVVGMsoitFJQUAK6wBXQBa7k3fTafnu+G9Ty+B/L7nZ+HuuJi/hL9rL2paXSO4LntXPse6nzIdHb/AIUGqh5CAcRjmtJucxt2p1LSjnnjTkp7NdRz4w4XCW2tCyUcmq3BjGixlGiGQgbEUa2kQGTiTE7JW22oNCKeMHHYsGSssIrZlYEmYMuKpdI5OVuWrK+un8SbmDr1gqxdtE8EVHOpehsnyfPSVfNZ8SRRR5/E+dO/VnalpESAPKe7701Z627+VMtheprFKVVGMsoitFJboAV1gCugC03Ju+m09vtu+G9Jk8L+R18C2uIjXpL9rLupc4vIJ2nDIZqLSPXg3y6iElllG8zJvCgi6VorGZE11jwjbxJbouoqZOzDJbzCrFT0JCLpSiRC+NpTJiuCBH0o4U1k3AwKYnjW2LyMNZHqgDr5Vg6VKhSP40IWWoLNU2wb17U6OeTrRANRLeOUfwjtCpDxIkvHFG6fJ89JV81nxJFNbHm8T50+7O1LSIkAeVd8X9orvXH9jUy8IvU1SlKqjGWURWikl0AK6AFdYBbbkP26n57vhvU8vgfy+52fh/8AER7S/ay9qfSOPGe1RZ7EURjNK3RSMOZk8RGRS8xb2VEr27EjkWhGiFj9XDYsso4jy5FhyjQONNYriZvZbYjQ7wnAtTEaInPN/wDllpgJVTXwGQ9vGmRGbBr8KYiyB8hLZccNQe8nWjRKDcsiN8+T56Sr5rPiSJI7Hm8V50+7+52pMQEgDypviH6TXetu/lTR8IvU1OmcqoxlhE5aYTXQYK6AFdAFruRP06n57vhvU8vgfy+52cAv+uu0v2s2GqF3u4ie1c7Pax6sjBCk7O2KSMeEuSODr5UrZSKTDHG4zSWOogpcCbLQuiKpaRkmRkrWxGyXhN0MI7amPnHEVhjroLw6qiE7MPeSnRCVkRutom5EL3JiUnexEw+LNzB7y1boWCfOjf8A5PnpKvms+JIljseZxPnT7v7nakxASAPKW+EfpFb60T1hqaPhF6mnwvVEDDopUwpN4VAC8MgDBmQBc7ipL19Pzn/CepZfCdnAeeu0v2s2epdZ7hxlc8j28WhBI8BRcmejDGqBqixxGBCEwlj6kRqDsK3QV3WhBLUHhKakc/M1uSRaROF8eVY4jLMSvlHBbsWIaUtNBkcw4k1IVTY43zwK1JCScnuObOAqJHPOT2MOqMLdqe0czhJJ2CyPPEtYkVWxCweJNc/Vb7yxeJDxXvqzonyfR5Sq5rPiSJY7Hm8T50+7O0piIkAco3yd619W589K/wAd9i5jrYkZapPUhaBRyV+9lpRrtU0r78IY8j8waQmUgosKTeo0q79wRylg95wPsTc4tFrT7y+kXecWN5Xjuuj2nwDlLKDeNqT59QwdZ7lnOw5Syg3iW/XqeoFHOzaJq3eth0dGa2OR75IbOAOR1iGG+PA4pW29xoScJcyNDOnIJHuIeGm5u151SDfhOBHSptM9vFxOOSu676D3jXxaQeQg9ig0eljm+moHLrNzBWqirk/QgdUEIJudIicb4namSIS13MMNihk0Eh+xKVT0oiumoSySOchFG8zJDUEphHqN8MmRCe9DHSJkTYxr/Fk4w33kydNBjjeRHR/k9m76k8LGH/8ASRKtjyckuacpLq39ztK0QSAEgBIASAEgBIASAB9I0bZonxP817S02zx2jjQBwHdRvJVgkc+lcyVhN7E6rh0FAGrVO9dpRmdK883Vd2FAFfNuQ0jGPGpp2/6ctusNssoeOSUdm0Avo6ph8YPbzjb2ORyoouJzLaT+o0y1OXjnkGt2LOVDfnM/94Qrpm536WocUMuNzLr+g9ul5Afq9X91nIh1+IZvh9CRulnbWt9q3kNX4jPrFfqSjSvCzqd/ZZyD/wD6PrD9f5EjdKN+y4dRRyjfn4PeL/QeNIs4+pbyh+dxv1+hn5+zhP5StSMfF4/X9ASqrS5rmtB8YtHGccgFpzZuJc9Eds3hdEyRslmcLMc1jGm+ZaXOcRxC4CDlOtIASAEgBIASAEgBIASAEgBIASAEgDDmg5i6ABJtE07/AD4IncsbD2hAAE25GgdnSQ9DAOxAAM+95ox+dK0chcO9AFdPvTaLd+6c3keUAV0+8ro8+a+VvS09oQBV1e8hTjzKqQcrGnsIQBr2l96dsIuKq/8AokHr8KgDSqzQjY3auuTx4D2IA6NuA3sYJwJppS5o/dhuqTyv1jhxABAHaaOkjiYI4mBjGiwa0WACAJkAf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhUQEBIVEBAVFRUQDxAVDw8PEBUQFRUXFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFQ8PFSsdFR0rLS0tLS0rKysrLS0tKystLS0tKy0tLS0tKy0tKy0tLS0tLSs3LS0tLS4uLTcrLS0rK//AABEIAQAAxQMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAGAAIDBAUBBwj/xABSEAABAwIBBQkLBwgIBwEAAAABAAIDBBEhBQYSMXEHIkFRYXSBsbITJCUyNDVykaGz0RQXI1JTlMFUgpKToqTS0zNCYnPCw+HwFVVko7Ti8Rb/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EABwRAQEAAgMBAQAAAAAAAAAAAAABAhESMUEhUf/aAAwDAQACEQMRAD8A9Wy/lqOlYHO3z3HRijvYudw7ALi55RxoXqaqul37pxA3WGNLmdgg9BcVUzvlMmU44yd6xoAHBcjTJ/aA/NCnyvJbBbkFWT5XcH/iDhbgvPY7fpE0zVf/ADA/vH81UCHOwFyqs1hrcLjXolrrH13HSE+I1TU1f5ef3j+amGrq/wAvP7x/NWA+pab6J0rYGxYbHl32Coz5StwH9n4p8BWa6s/Lz+8fzVG7KVZ+Xn94/moO/wCNsvZ2k3lwI9itd2BF2m4Oogp8NiM5WrPy4+uo/mqN2Wa38uP7x/NQ49yic5ARS5wVrGOlNW4xstpuBqBiblrReQ3JsUPndFqR4slQ/lfVPH7LdSmrB4LcTrNVMD+Y2NtujFArALjSJa3hcBpEYYYcV7dHHqWao1G6VWXvpSfeZreq6785lZxv+8SoHCSiDf5zK36z/vEqb85Vd9eT9e/4IKSQGvzlV32kn69/wTTulV32kn69/wAEGJpRR7k/dCrJJGxunfEHHRD3TPLQ7gB4gThfl4sUUR1uVDh8pN+V83xXjBXp+5/lgzQuikN5YbN0ibl0TgdAk8JGi5uwN41qM5X8amUMqZSiaHmquCSPHmGrpWQ7O3KJw7u7i/pZR6sVczmqLsa0cFyhmJpWuMY5VryZ1ZTthM52ypmYfX8Vs5nbo9T3Uw1IfKANJzHtZ3drPrRvaAJAADgcTwFDsMPGtbIFG188dxiHAtPCMcRsKlxWZffr2enma9rZGOD2OaHscMQ5rhcEclikg3chq3PoDG8kmConpxfXotfcDo0rdCSw6MnLvnfoHYapssHfdKr5ePhfoHZaoM7J9EYGxOk0Hi3pIPQQCt+Iv5KoBKOAR6Olc/0fcxf6STjacSG3sRcm9yW0MpZdyYzeWqJ7Yd0YWRM/NBtcbQo8vZV0cnO7nve6VAgfbgjbGXhvIN6MNqBG6MjHkSfTNI0IQxx0mWJe4u1C1hhypJb8TLKYzdbOWKSGaN1RRSuk7mNKWGRrWVcTfrAtwe3jt7dSGG1+mDfxhr4iDqIVPJuVnxVULmm13tY4arsedFwI2G+0BU5Hhs8jG+KHPa30dLAewKKsVUqfkfKZjeGuO8cbHHAHgKqMLH6bS7RkA0o24BrrXLgXE702GAsbk8FlmGQ7bHA8BsdaG3ob3KGR2B2LjH3aDyA+xRyuwOwq7GxlTzY/n1X2moAXoGVvNr+fVnaavPwFiq4kukJKyIS4uriUJIhdC4U0Iyijc/lLJZXf1RFon0nPaW+xr/UhZxGtej5EyGYIWtcPpX2km4w4jes/NGG0uWozU80LpCk3JxC3IIg0asVBPItObMcyyv5r+UM2jrVOcq9mszvhh5R1osFO5IPoarntT7xySW5KPoarntT7xy6uTsx8vnwv0DsNWTn9LYN9J3ZK1c4D4X6B2Goe3SZLBnpO7K34jHiyqx0ctLO7Rils9kmvuU7fFcR9UjA/6kgTyhR1cbraBcOB7PpGEHiI4NoCbNUX+CqyyluAe5vI1xt7Db1LIfTRGF3d5zvxjHHcFxdwE8Vv96lSglJeXE4m5O0lQTuPjX0uW5J6U2mdr2INmgycJw4k2LXwsG9vcSuc09IsPWscuRLmxkivmjkfS04mi0ozIXOa1pMZLg0XIB1oaqIXMeWPaWvadFzSLEOGsFAdxO3rfRb1BNkOB2Jsbt630W9QUcrsDsVUS5X82yc+rO01AJKP8sebZOfVnaavPlErhKS7ZKyqOWSXSlZBy6aSkUQZn5ufK3l8hLaeMgPIwc95xEbTwYYk8AI47gztm5v5OknnjbHG6QCSMy2G9bHpC5edTRYHXr4F60+docS7Eg9F1IY2QsbDCwRRjxWNFhc6yeMnhJuSqOV6Z5fdviu3wty4lak0lptVlK+AWe+ounzw6I5VQe5VFsOC0825h8oYOUdaG5JSFezTkJqmekOtKkHu5Ibw1R/62pP/AHXJLm4/5PUc8qPeuSXJ2Y2cXnjoHYahvdN1MP8AbLfW0/Bb2Wn6WV3uBDm6RYCOBzI4w5vQbqjnlSiVro9ROLTxOGr4dK34rx4zkHlx9dilSOic1weS15LdFwF2gXOncXGPi26ejmUKdzHEEWcDi1UHEcRB5FnaaddrdbV7F2E4HoCbrFgLDX/9Kdyf7ug9BzDz/hoqc080cmDnOjfEGkkONyHXcMbk+zVZB2Xco/KqmSe2j3R9w3hAwa2/LYC6zlp5GoS52mRvRjtUN7EbTgNgHsUcrsDsXXOUMrsDsK0DDLHm2Tn1Z2mrz5egZX83Sc+rO01AAUKSSSSrJLhK6uFAwr2PMegDaCnNvHJkebay6R3+ENHQF46vZ8xqnSyXDxs02H8yV9v2SPWtRhZytiWcrnO6AP8AULsbhdxdqaGEbXM/06lSylPv9H6rQOl2+PWPUrErwIg7jAPqa0fgqMutF7krEqHi+CjynlS5IaVRjeTrRE8hWtmgzvlm0daxrrczQ8pZtHWhOxxuRD6Cp55Ue9ekubkcg7jVNvvhVzuI4QDNIAfW13qK4uT0QN1x8JP5zU/5SbnCd8UsoHwk/nFT/lKHOE74raBjKVFHL47bngcMHDpWBNm4y+EjgOLRB9t0RSuVSRyVGC7Nwfau/RHxTDm837Q/ohbbnKNxU0M2HIsTdZL9uA9Su4AWGAXS5RucgTiopXYHYV0lRyHA7CgNsrebpOfVnaagABH+VvN0nPqztNQEozlTSknWSCsm02amlPKbZXTNpq9azYBgoooR4zyXu49J5F/Va3QvOMjZOErtKS4gYfpCDYuPBG08Z4+AY8Vzhtfcg6uBoGAAGu3EBgOkqyCXKspE8tsd9gNfALDqVXOPKZa1sDTi0ASEHW8Cx6LqzWv77cRwDup2iMFp/SLUM1cLnOJK0ioy5KvRtsEyKKykLlB0LdzRHfDNo61hBbmabu+GbR1pSdjPce1Vf9/J/wCRUJLm474tZziT/wAioXVzdw3lI+En84qf8pVs4nb4qxlcEZSdcEd8VBxBGBERBx4CMelUs4nb4rV6QPyuVV7lLM5VXuUHHOUbnLhco3OQdLlG4pXTSgRKjldgdhSJTJNR2FQHeVvN0nPqztNQIjvKvm6Tn1Z22oFV0xl2S4V1NctM1wqeipXSvDG4XuXOOprBi5x5APXgNZUC1WHuNOCP6ScknjELHENHS4OPLZvEqiy6Yb2KPCNuDBwnjc7jcdZ+AWrpESMYxpe7BjWtFyQBfADWS4u/RWHklhc4cZIAXpFNk1lMzuoxleLXOsN4bcp/BBSbk6VndZ59Fr5AGNjDtIsZcHfHVfet1E8KxZbA4rTqsoE3Cx53qjkhYqj3BMnuFX01BeaVr5pv75ZtHWh9si2s0Xd9M2jrQg83Gzvav+/f7+oSS3Gr6FWbG3d5BextcTz3F+PEesJLm7sXOw+FT6bvcUyxM4nb4q5lg+EXc5qv8pZucbt8VUYMrlUcVLK5VnuQNc9MukSmlyBEpjnJEppKgRKilOB2FOJUcxwOwoPQcq+bpOfVnbagVHWVfN8nPazttQMq55duFMKeuEKxDD6+Ra2XmaMxjGqMNhbsY0N/BRZv0JmqYYuB0jQfQB0nfsgq7l6L6Z5PCSfWtIWRHhssROrTAP52H4r0TKtQLaPJZeZmO7LjgRPT5RM0YcTvwA2T0vrbD13QQVTrFVHvurUpus+obbUga5/GoXtHAuOl4D61G64xbigWIW9ma/vlnpDrQ98pGo4LdzMeDVMsf6w60WPTdx3yeo53Ue8cuKvuMDeVf98/39QkuTvAxnAwtyk5rhY93qH2uCdB4iLThxjFZGcTt8VtZ5i2WXHjDT/22D8Fg5xO3xWmWBK5VnFSyuVd5Qcc5MKRKYSg6SmkrhcmoEmy6jsKcVHM7enYepB6FlQ+D5OfVnbaghG2U/N8nPazttQVZXTnl24kkt7N3N50/wBJJdsINhbB8hH9Vl9Q43cCaRNmFGRU92IOhHoAutgHulZYX4y0P9RVvOujLZXjha5w9q3ZImRsMbSG6LQWQsFo2N02XN9bnnC7uH1WZnQwPc2X7RjXnaWi/tutAJppgMDqTopjC+48U+og6weRQ10WibhRtl0xonXwIgibI1w0m6jwayDwtP8AvFV5Vj5NrCx2i7HgI4x8RwH/AFWvIbi4NwcQeMfFUUKlnEs90pGpaUrlmVTeFQIzNfg7A8a18zI3Nq4+EaTceDWhmQ3RDmFUuFXG12I0h1pSdvWtxQHuVS4jAzPAOFi4TTEjjw0h61xWNxi3yWe2r5VPbZ3RyS5O4Uz4Phl2xvYah3OF2+KIM+z4Ydsb7tiG84Hb4rSMGQqBxUkhUDigaSmEpJIEldN0lwlNhEpkx3p2Fduo5TvTsKht6NlLzfJz2s7bUFI1yl5vk57V9sIWybQmV2J0WNxe7iHEOUrccslrIOSO7O034QtO+OouP1W/iUXVGVWNGiyzWgaIAwAaNQHIh+qrw0COMaLQLNA4lly1ZVQQUVVpzOufGjeB0Frv8K2spG8EfG1tkF5JrA2Vj3Gw0g0nia7ek+olGNdgzRPAgFq+O6wZLtciSoGtYeUIkFad17PGsLQoKwWx8U6+R3GPx4+gLIDrYJsU2ieQoN6rFv8AeHRyLOlerlPLpN0eEDe8o1lvWR08izawEHkRFWoC2sxHd9x+k3rWI991sZjeWR+k3rSrO3tO4r5JNzqbtuXVzcU8km51N23JLk7BPP0+GHei33bEM5fO+KI8/wDzy70W+7YhfLx3xWhiSFV3FSyFQkoOEppXCU0lQOumkrl0k0hJsuo7CnJk3inYepVXpk8JfQvAwHy2rueIaYQ9UVTWNEceAHrJ4zyokq5dHJz+eVl/1iBXyXWo55dnvkUMj1xz1Xkeqyu0jdN7I9YLhpbBrXoeUXXaHcYx2jA+0IDzeb9Jp8WpGDJdKNw4nX6HD/1VGTMcVn1kdwrlQcVA/EKAenZYqvIFpVsazXoiegqSDbVxHlWhWM0m3A13tyOGsbOEbVgk2N1tUU2kLfW4eJ48U+22wlBjPNit7MU99x+k3rWRlGKxvawOvkPEtPMM9+R+k3rUtaxj27cT8km5zN23JJbifkk3OZu2Ulydgdug+eXbG+7YhbLp3xRPuiHww7Y33bEKZcO+K2jFkKicU+QqFxQccVxJJEJJcJXCUXREpkp3p2HqTkyXxTsPUruK9JyifB8nPavthBDnozyo7wfJz2r7YQK9yS/HLLt171ASuPcu07blNpoQ5Ebot2ohpH714/sg9IIH4lYFMbALVyfJckcYd1E/gtIp1LsVEHLlScVA16CKsCxZ1t1GpYtSERWcrWTpMS3jVRxXYX2cCs7b18bNXHptvwnB3pDUeke0FS5ji1ZH6Q60yNw1HU4WPIdYPQfxV7NWK1ZGbW3wvtBVsTGvYdxLySbnM3bKSW4n5JNzmbtlJc3YF7ox8MO9Fnu2ITy2d8UVbpHnh3os92xCWWjvitIx3qEqV6iQIppK4km1JJJcU2EmTHenYepdKbL4p2HqRNvQ8qnwfJz2r7YQG9yOMrnvCTntZ2wgIqs6dKu0DMVSC06MWCuLOS8HLUyEbzRt+s4M/SOj+KxC9amQJPp4TxSxn1PC0ygrDiqemtHOBujPMzVoyyNGwPIHsWQXIiZ5wWVVBaF1RqwiqD1xpSemhYdPGzTPuwLfzSF6mPj0m32goaon4IjzLPfTPSHWtuc7etbifkk3OZu2Uk7cW8ln51N23JLi7gXdLPhh2xnu2IRyyd8UWbpp8MP9Fnu2IQyud8toyZEwq1RU/dZYohj3SSOKwcGk6bw2wcQQ046yCBxFXM5aGmhcwU0jpQQ7TJe59iCLWvBFy8DtoQY65dIlNJUNu3XFy64qhXTZdR2FOTZNR2HqRR/ljyCTntX22oCKO8sHvCTntX22oEUgfGtOI2CzYVcBW8XLLtKXrWzfN54v7xnaCw9Jbea4vURcXdG32AglaRPnY4Grnt9q/wBYJv7VgvK0Mpzacj5Prvc87XOJ/FZrioJGuVWqU4Kr1SIz361xdem3WHXxeo3ImzOPfUfpDrQpTlFGZru+o/SHWt+Ofr2LcV8ln51N23JLm4n5LPzqbtuXVydgDunHww/Yz3bEIZWO+KLt0/zw/Yz3bEH5VO+K0IcjaXyqn0A0v+UQaAffQL+6t0dO2Oje17cF1rZ9PDjDI10z43CVrTO+rdLpRvAfvJ3OLW3IsQccbgFqw8naHdou6DSj7rF3RoNi5mm3SaDcWuLi9xtC2c+qwyvhke0CUx/SWcHWwZvNLTdfRf3Ug4Cz28RUAwSmpJKoSSSSBJsmo7CnJsmo7CgPMsHvCXntX2ggRHOVz3hJz2r7bUCrKpolLpKBhTgV0jll2nYiDIEZGlJwMY51+UjRHtcFh0zLlGE1P3ChBPjTvH6ttyPWQfUFUDdQ5VHFTSuVZ6B7SoKoqaNV6pEUHpqc9NXOtp4yifMp3fUfpDrQqwolzId31H6TetbnSeva9xLySfnU3bKS5uI+ST86m7RSXN2ef7qPnh+xnumIPyod8UXbqR8MSbGe6Yg/KWsrSKUT9FzXYjRc11xbSwIOF8L4cOCflOtbKW6EYhA0vo26PcwXG9xYA3Oo34hawwEDlCUCSSSRCSSSQJNk1HYU5Nl1HYUUcZX8gk57V9pqBkcZW8gk57V9pqB1lTwpIwoWq3TMW8XHLttZvUBllZGOE4nibrJ6Bcrez7qhpshbg2NuA4APFaPU32q9mZQdziNQ4b5+9j9AHE9JH7PKhDLVX3WZ7xiC6zT/AGRgD0gX6VtFF5UBKkeVESoiVmpV6pWG6lWqVVUXric8Ji5Vs4FEeZB76j9IdaGwiHMc99R+kOtWVHuG4ge9J+dTdori7uIeST86m7S4suoG3YKZ0eVe6HxZGRvaeDxAy3rjd6kD5R1r6Pz5zTZlCIC7WzR3MTnX0XA20mOIxANgQ4YtIBsRdp8eypuf1bDouhnHACyA1IPKHRXw22PINSqPP3OUd0Yu3Pav7Op+4VHwTPm7q/s6n7hUfBUCGklpBF3zd1n2VT9xqPgl83dZ9lU/caj4IBHSCWki75u6z7Kp+41HwXDueVn2VT9xqPggErpEos+byt+yqPuVR8E0bntb9jU/caj4IJq2TSyaTx1Erz+e2N3WSg26P4M2MoMhdA6mqJojiW/JKhrwQDYtOjbhtY6+hUY8wah2qCrZyOoaof4FKoRjCJs08jGplDdUbbPmfxM4h/aNiB0ngV0bnVWNUdR9zn/gWnQ5t5WhYY4TUMYTpOAoHYk4XJMdzqCsykc7hWhnTlARQkMAbcCKJowAFrYcgaOpedlFlbmhlSaxl+UvtcN7ykFr69UfIFUGYddq0KnD/oph6t5iryThQ1IVEEUnc/rvs6j7nN/AufN9XfZ1H3Sb+FORwodbqVSoKLv/AMBX/Z1H3SX+FRu3PK464qj7pN/CnJeFBLymo1+bit+xqPus38K583Fb9jUfdZvgs1eIMW/mSe+o/SHWtM7ndaNcFR0Us/8ACibM/c0ru6aXc3U7Tg6omAa5rTe/c4jvi/iuABrvwJF4j7cUp3Mye551S1M0jPQuG9oOSRpkygjp4o4IhoxxtDGAm5sOEnhJ1k8JK6o0/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAPDw0PEA8PDw8QDw8PDw8PDw8PDw8PFREWFhURFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFRAQFy0dFx0tKystKy0tLSsrLS8rKystLSsrListKy0tLSstLS0tLSstLSstLS0tLS0tKy0tKystLf/AABEIAKgBLAMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQIDBQYEB//EAEUQAAIBAgMEBwMHCQcFAAAAAAABAgMRBBIhBTFBUQYTImFxgZFyocEjMkJSYrHRBxQkNHOCo7LhM1SSk7Pw8RVDU6LD/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAECAwQF/8QAIREBAQACAgEFAQEAAAAAAAAAAAECEQMhMgQSMUFREyL/2gAMAwEAAhEDEQA/AOEuFyFwuVVlxZiu4XIJ5hXI3C4EriuQbC4E7iuRuFyKlcLkbhcglcLkbhcCTEK4rkVIBXABk40pPdGT8ItkCWyHeNSUtyk9/JGsZtLdFKLW9NeKI3PJLpG83Zop07727Sa57tDcoYynOl1qfydm25KzSW+6NTCX7T3M25Fmpg9o0atssrSb7MJRlGUo2fbjpZrR8b9x703x18dV7x/Pf2XLX05piOmdGD306f8AlwXwI/mVJ/8Abj6Iv8r+p73MsgzqqezqWZdiOrS3GBtfDqnWqRXzc88q+rFVJRS/9TOXHcZtqZy3TxsgybIs5tEJjEQJkSTIsCLESYgIsRIiUbFwuIEdGErhcQAO4gABAMRACGAUgGIgAGot7v8Agsr4d01edoveot2k/LfbvtYaVUKU0t78uJRKpJ9y7t/qJRLpNpuu+Ct3v8C6jWbSg3ZuUUnpl3PVt3ad8m6ytfTircLsurUs1HLH609PRb2bWD2LRjfrF1jaaTbcYxlwdlvXc7lkGG9Lpppq6aas01vTXBktk081Kor2u5K63rvLtt4fq8RJK+SunUpXbk4y+nTbe9qV++zg3rIrwsnChVlHepStxV72TLjNWpe4yqmzK8L04XcJaPRPTlfkbOE2blwzoybvJSzNPizlEqkk8Q6mqktc/bv3Lfb3ejOnw20JLBqvJZpqL36KTTaTfuNRkYHoxPDVadWpminFypJprPF6Zr2VzbRhbN27iatWlSxF5J0/kW3LsQSukk2+z6G+jeKU4k0xIbRplbS3rxX3nN9Il+kVPaqf61Q6Glv80c90if6RPxn/AKs38THL4rh5MsTGJnldyAAARFkxWAg0JonYi0BBkSbIMDWAQHVhIBILgSAQEDAVxBTEAEDKuvXCN/HREMTVccu7K209E9XaxLC7PnPWMZSX1tbJcLssF/5/NK0LUu+Hz/HPvi/ZseenSlJ2inJvXRNt97NdbMpUYqeIqKKe6KveXcktX5FNfb0YLLh6SgvrzSv4qK09WyppPC7DnLWbUFy3y/BF2Mq0cG4xjT6yq1mvJ/NV7Xbtpx0S4Ge6+Ieap11S0ZWdqklrpuguzx3WPXicDVxUKNeNnPK4TjfKpZZNZo8NdXYK92ytsxrz6twdOdm0s2ZStv1stTptk4nD041uvw7rSlG1N5rKDs7/AA1OR2fsxUJvEVpQpRhdRUpre1a8pbuL07yWK6Sx3UKbqv8A8k706S9e1LyXmWCXSHCuf5tNfOhXhF+zJpP3qPoeHZdnRblbK8zd91uNzyyx1adSEqtVtJ6Qh2KSf0eyvna21dydKk5YJwW+UGuO41KlZlWWClU1lO19ZZFlevF/Gx1FGlDq1FJOGVJcU0cX1LVTM4NLTs20+bb53zbd9zsNk0XChRhLeoK4wZqWE2dSpScoQSb0vq9OR7BZSSOkZSgWIpTLIsqJwOd6R/rFT2pfzM6JHPdI3+kVfafwfxMcvi1h5MsTAGeV2IAGAgsMAqJCSLCLAqZEnIrYRqARuFzowmBG4XCpXHchcLgSuFyNxNkE7iI3C4UVIZotc0bXRfH6RUvo9ia7uP4mNcWGrdVWjL6M+zLx4MSjQ6SUcuMl1rkqbjHq5LVOGVWt53fmZ9DBVKspKjGTi9Mz0ja/F7uCOtxPSHCqjSpVFKpWpOUctKKqSdN2cVK9lGzctW9z7jBxm2MRV7MLYWnuUabzVbd9S2n7qXiasRN7Oo4ZJ4qur6WpQ+dLwt2n5WDEbfqSSjh6SowSsp1UnJK2mWmtF5vyMynQjFt2vJ6uTblJvvb1ZZYJtVUpucs9WUqs+Eqjvb2VuXkWJErBYCipHVeKfpqbOyV8jT8DHqO13yjNrxUWzZ2cvkqfgjWKVf8Am0L5skc31sqv6lokSR0ZNMlEjFEiosQyCJplQ1I57pA/0it+0/8AnTOhRz3SH9Yq+2n/AAqZjl8WsPJmiGI8ruAAAABgBFkZE2RYFUitlkiDCPdcLkQNommMgh3AlcLkQuA7hcQEDGRGAyFWOZNf7uSC4FmErKVOMLJSpuVrJK8W7tPwld/vPkWWPHG8J5rdltJ8szvb1sz32Ns1CwWJ2CwELBYnYTQHjxe6Xg17mb2CVqcPZRgY7d5/BnRYWPYh7KN4JVmYsiyuw0bZTuCCKLIoqFFFkUCRJFRJHOdI/wBYqeMX/CgdFFnO9Jf1ifhB/wAOBjl8K1h5MsAQHkdwAAAwAAExMkRYFUitlsitlR6gEM0hoZFMYDAQAMBAAwuICBgIAqcbPNF7pKz7uKl5NJ+RfgamaNnvR5R0Lwlm+i3lftNNpeaT9DWNStHKKxZYGjTKuxYlord97byLQAeDacVZ+1D+ZHQ0fmx8Ec9tDdFc5x+9G/B6LwRvFKsYlIjcEbZWqROLKopliiVFqJIrTJFRNI5/pL/bv2YfyROhjuOd6SP5dr7FJ+sf6GOTwrWHlGUMQHkdzAQwAYAAEWSEwK5FbLZFbAuuAgubZSGiA0BILiuBA7gIApgIAGAhgMso2d4N2U1lu90ZXvGXk7eVyoBsaOBm5RcZK0oNpp7007NeTPRYz6WJtVjNaNqOZ/bWmbzST8U+Z9ixeyMHj9nU8XTpwp1JQebIrZKsdJx8L7u5o7Tti9PljRGxY0JogzMfvp980ven8DdjHcYmMj26Hto3rmsUoUSaSJ0cPUn82nOXsxkzodmdD69WznKNFcn25+i0XqX3SLMMr8Rzlxxka3SDYFTBuLclUpzdlJK1nyaMc1LtnLGy6q6JOKK4FsJFZTRzfST9Zl+yofdP8Do3I5rpH+sP9jQ++oZ5PGrh5RmDEM8juBiABjEMAExiYEZFTLWVtATAQGkMZEkgGAgAYCAgkAAAAAwAAJ0qUptRhGU5PdGKcpPyQVBry7+R0Wx9tVo4arh4zcYTknOHetHblyfgj19Heh86ks+Li6NFfRbSnN+WqXvN3AdDaPX1KmabpyfZp2UI277f0LOSYtzgyyclSpSm8sIylJ8Ipt+43MF0SxNSzllpR+07y/wr8T6Dg9nU6UbQhGC5RSX/ACel00uBLnfp0x9PjPK7cls7oTh6cozqvr5R1SkrQi+ajx87nT0dn0la1OC8IRRKpJI8VXakU9OdjFv69GOE1rGNFYdenLgX9Yo6qUVzvqYlXajSd3ZcdTkekXSvqovJK8npCK3zlyX4lxuvhbj1vK9RtdNNqUpKNGTcn2pLLwklZX7tTlfkm3bMlfv3Ze/vMzDyqTbqVXepLV8orhFHrPXhNTT5nNlM8tz4X1FHTI2997+4akUxZZE24pNnPdIv7dfsaX3zOgMDpGvlo/sYfzTM8njWsfKMsYgPI7mAkADGhDQDExiATINEyDAQxDNICREaIGAAAAAAMAQwoGIaA9GAwkq9SFOG+T38Iri2fTdi4GnhYKFKKzO2abXam+bfwMfofsSVODqzVpzWie+MeCOuw+HOOeW7qPdwcUxm78o06UpO77T9yNLD0WuBOhRSR6VBd/kxMbW8uSfEQzcNPC558RiVFO7tbmTxVKNt9n9qKfvVjlekbr06VWUMk4xhJ2c2r2V7ao6yWMTVW7X27GHZTu3y5HF7d6aRoWp0UqtW95O94x7rrezisJVr4yrGnOpOSd20r2SXgdFhdgU6eri34pmpxbvbhl6rU1j0z6m2toYt2UskeKjG0Uu9u5o7P2WqfbnJ1Kr3zlrbuRoRoqKso2XgM7Y4SPLnyZZfNEYkhJobkdHNNE4sqjqezD4e4QqVJyMvpjhOrnh39bDxfpUmddgsLu0Mr8pdHKsA+eHl7qv9TGd6rWM7cIA2I8zsAEMAGiI7gSEwuK4AJhcQERiGVDGIYDAEAUDAAGAIaRAjruh2wOskq9SN4p3pxa3/AGmZewNkOvUjp2ItOb+B9QwVONOKilZJK1uRzzz109Xp+Lf+qcY2sjQoRsjzKJ6obkYxenOvRFsm52X42Kc3fY8uKrcreN2enGPPZupYnFuz0XpY4/prj1HC1rO05x6qOv0pvKvvNbG4yy4eJ8z6WbTdTGYelup0qlOTvucnJa+CXxLO6Z3242xTLoerLJXlGVu1eN033Wat7zzYjozWpq/5xp4SXxOm2ltelRzKNptNq6ayX7nxOerYrE4uSSTSfzUk9fZS1fkvM9Of858PmYTkrOxGGnSSvjZZvqQdRtLv1Ltm7RxcGlCbqJ7o1Iqo38fRnRbN6IyhKE8RSeWTslO95Se7sxenrfwO5wmwVJRzWypPLTjGMYrn2VoeXLP8e7j9Nb8uFwuIquOapnhJyso05Skn9lXbc5b+ykrb2ze2X0fx2I1lTdGEno6lZ50vZUX7zstnbHhTk5KCzblJrtKPLuXcdJhaSt32Me7L9drw4T6cfgfydN61MbW8I0sPb1lBnS4HoFhUrSq15fvUovx7MEdDCvCMbvkc9tjpxs/D6uo831Y3b/w/0Hvs+3O47mpjqfuoy+mmwY7Ow08XSq13Tg4KdNxp1JRUpKKlHWPFrS5826WdJ6WNo0acadaM6Sy559SoyjmzO6Sbvf7XqbfTz8oqx2HlhKFOUKUpRdSc7KU1F3UUluV0n5Hzpl91rjZpFltDB1aibp0qlRJ2bhCUknyulv1RUb2xsfShhXSnVjCf50q6U41ZJqMIuOsU/pxXha4ZZX/TMR/d6/8AlVPwD/pmI/u9f/KqfgdFHaGGU2+vpyj+cdbG8K94J1Kk212N/b97IU8dhlGEevp3SnrkrKzlShHRKnzi0+e/W7L0jnK2CrQi5To1YRWjlKnOMU3u1aKEnyfozpdqbQw8qGJhGrGTqzpNKEKl5JV5TlJ3ilfLJLf9EjW29Sc88eti3WhNqy0ilBPVPlDd9oiucs+T9P8AfNBlfJ+jOhwe3aUYU1LrM0VTzNK/WNUI03mbl9bX9xaX1PPjtt5lJ05VIScI21ds8ZUXq76/2c9Xz72EYjFcv2jiFVrVai0jKbyK1rQWkI24WikvI84UxgBQxgADGAAA7DAglGBr7G2NKs9Ffhx3833ABnK6jtxYTLLVfRdj7LhQgopavVvi3zNaFNJbgA4zt7r1NRCcrMshX4aABZ0l7VV6y5GZjcT3gB2lY08OGoyrztq4LeG2uiEMXSp9rq6tN9moop6cYtcUMDbGU30xcJ+Trq5RlVqqUFb5sLNa990l329Dt9l7GoUI3pwjHm98peMnqwAm2sMMZOk9pJNU+6fwZKjiIx3tABxyy7enGbiqrteMHK2r+5c3yRzW1PygypNxotVJc0/ko/vfS8tO8AGP+vl5vUclw1MXK7S6W43ELLOvKMPqUrwXrv8AeYjle74vfzYgOmpHiyyt+aTZEACEJgAAFgABNCEADEAARYhgEf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8QEBANDQ8NDQ4ODhANDw4NEA8NDQ4OFREWFhURFRUYHSghGBolGxUVITEhJSsrMS4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0dIB8uLy0tLS0rKystKy0rLy0rKy0tLS83LS0rLS0tLSstLi0rLTg3NysrKy0uLS03LTc3K//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGAQj/xABLEAACAQICBAYNBwsDBQAAAAAAAQIDEQQhBRIxQQYHUXFzsggTFBYiNDVhdIGRkrEyM1JUcqHBFSNCYmOTorPR0vAkU+FEgoOUwv/EABoBAQACAwEAAAAAAAAAAAAAAAABBAIDBQb/xAAoEQEAAgIBAgUEAwEAAAAAAAAAAQIDEQQSMQUhIkFxE1HR8DIzNCP/2gAMAwEAAhEDEQA/AJxAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeSkkm20kldt5JLlIz4R8N61WcqeDm6FCLce3RS7bVa3xv8AJXxAk0EETx6lNRqVq05ylbwq1W+s3vs8vuM2ngWlZKaXIq9VL4kbTpNQIYWEf0an/sVf6nvc7X6FR82Iq/3EbNJmBDlCFGT1X26Mvoyq1k+tmZkdHU/2n72t/cOo0lcEWR0bS/afva39xWtF0uSp+9rf3DqNJQBF09DUHtjJ89So/izneEvBir2uVTB4mvQnFXtGpJQy5YrK3nSTW3wtg6jScwfGtXT+kKc5U6mJxKlCThKLqyyknZrJ8p53zY36ziP3tT+pkh9lg+MpcJcbuxWIX/lm/wAT2nwhx7aSxeJz/aSEeY+zAfHX5W0g/wDrK/7yZdw+mtJU7Onja0bZLw5WSNn0b/Zn0W+z7AB87cDeN7G4WrCjpRvEYeTSdV27ZBfSutqPoPB4mFanCtSkp06kVOMlsaZhMTHlLGY0vAAhAAAAAAAAAAAOe4e4uVLR9dwbjKajRTW1a8lH8SDtNY90aPgZSk9SG7Visr/H1Jky8Z7fcDtb5+he/JrkEcKI3jDkUE35ryqK/wB5Epcx+UJuV4vY7qTs3flV9nqJM4K6fdSFGNaWsqlqblL5VKrfVvffFvanud9xFeGruk5xlGL1lqtSV7Zpvm2WuuU3/BrEupW1MoRlUVV2yjCN1rPzK3wMtRpHul1y2rY1k1yM6PROCwk8PGc9VtxbqTdtaEru6vuscTHSKk5TbUVKU6jcnZRi5N3b9ZYlp/Bp2tianLOEKcYvz6spJv12NWmW2yr0ozyT2PwJ709zMvR9Zzgm8msmuRrJmHTqwnBVqM1VpuWrrJOMoTtfUnF5xds+R7my7ouXzvTVOuwNpEuosxZdiwK0GgmegQXxjaNjTx0lHwdemp23ZTnCP8MInMLCfrfcdvxn37tzSt2tJW2tXe313OTii5jx1msTLbWkTDG7j/W+4vYfCqLve79hfjEuxiWK4axO9M4xw8jEvQplUIGTSpFmtW6tWHjMNrU55fJi5LnWZPXELpKVbRUac3rPD1ZU03tUL+CvYQzVo/m6nRz6rJR7HFvuLFcndEbct9V3/Aqc6mrVlp5NdTCXQAUVUAAAAAAAAAAHJ8Z3k+XT0OuiEdLK+qn/ALUf5kybuM/yfLp6HXRBenquqovf2qKXvzIlLSV9Hxf0fNrLZzGVo2kqUk3surxStG34mjniZzvKOSX6T2+tmTgcXKMu11N/qz/qTpG3VaYxTjGMb5Sld+eyyXtd/UYdF6zh4cEpJuV3Zrwmvusm/My/Kiq9JJuzj4Oss3GS2StvyNZ+ScTfwY05r6aq01H13aaJpMR3RaJ9nTcEcW+31Kd/AqYWq5rdemteEnzNW/7mdZoyfznS1OszjtBYbtEZtyjOrVShOcfkQpXTdOD3ttK72WVlvOp0ZPKT5ak3/EzC3dlDdQmXozMCEy9CZilmqRXcxYzLimBEvGd46uj/ABZycUdZxlr/AFie7Utfde5y8EdHBHohYxx6VUImRTgeU4GZRplylW6KlKkZ1Cge4egbjB4Qt48azjx7YlbC/mar5KVR/wALO87HHxHE+krqnPaRpwpYWvOo1FdpqRV98nBpJcrOh7HHxHFekrqnO8T11ViGjxCnTNUuAA5jmgAAAAAAAAAA5LjP8ny6eh10QRwmotxhLctam/N8pp+yTfqJ340PJ8unoddEQYmippppSUlaUXlfkae5rlISjiniJU41KD8HXspctk7+wvuvKvX7dqqKTTairRXJFfcdDidA3+TKDW5VY2a9dmvZYpp6Emv0qXvWX3InqnWkaXtFVrS1fpL70V4vS2rNpQg1F2zWbttz3HlPRlVNNSpXTv8AKf8AQyKuhlUlrPUu9vhys+dJEJZUMRrarV7SStHntY6bR2UF522abA6NSabes+W1ormRuoO2SISzIzLsahhRkXFMgZ0KhejUNdGZdjUA4DjHqp1oQ/SUpT9TUV+DOVpROk4fRfdMZ7nGUVzpq/xRoqETp8aPRC3hj0wv0KZssNQuWcJRub3BYXYdPFjXMeParB4Q3CVOjTdas9WEfa3uSW9iKp0YOrVerCPtb3JLezjNOaXniJ3l4MI5U6a2RXK+V+c18zmV49emPO0/u5dTFiisbla4R6XniNZy8GEYyVOmtkVba+V+ck/scPEcV6THqkM4mXgy+y/gTN2OHiOK9Jj1Dz0WtaZtadzLj+K36r1S6ADJygAAAAAAAAAAcVxrzawUEnZSxNPWWWaV2l7SLUyUONrxOn6TD4MiuMiJSulSLdz1MgX428xcizHjIuRkBkxkXIyMVSK4zCWWplamYqmVqZAylMqUzFUypTA5Dhy71KXPV/8Ag0uGibThnNutBblGTXO3n8EarDSsdTizEVhf48emHQ6NoXsdHTjCjB1ar1YR9re5Jb2aHRGkKMM6slGyyW9vkS5TX6a0vKvK78GEcoQTyiuV8r85b5PNrgpqvnae35l2ePSutvNOaXlXld+DCOUKa2RXK+V+c0lSZ7VqGPKRwPVe02tO5ljnz+0Ka78GX2X8CZexxk+5sTG/g9sTtlt5SFqz8F8z+BM/Y4+L4n7aM9acLl23aEygAKgAAAAAAAAAAOH43H/oqfpEPgyKIsl/jVivydJtJtV6NnvXhWyIeTIlK6me3LaZVcgXFIrUizca1s3lzgZKkVKZRhdVu8tlrq2etzcp5Ubu3bVu8la2QGQplamYqkVqQGQpnvbDH1jxyCXO8MM5Un0vxic/r2N9wqleVJcinL2tL8DROJtrl6Y06vGxTOKJ/e60pO93tLjqsplEtSZjPqnbd1TSNK5TLbkUuRQ5GUVVb5NlV5PmfwJr7HH5jE/bRCNR5PmZOvY4JdxYp2V+6Iq++2rsIsp5p3MJeABi0AAAAAAAAAAA5DjU8nT6aj1yHETHxq+Tp9PR65DhEipFSKD25CVZrdJVHrKO5K/rNhcwdJU9k19l/gBs9AYm8HTe2Dy+y/8Am5lY2psju2nPaKr6lWPJLwH69n32N9imrZ7dwFlSK1IsKRUpAX9Y8bLeseOQGFpPRVavKMqVNzUYuLacVZ6ze9mH3tYr/Zl71P8AqdDh8VqK3Ln97Kqmk3ynUweGY8uOLzaY38fh6Th5axgrEuVxmga9OEqk6bioq7zi37Ezm6tTPY/WrHcaS0g5Jq5yeMSbZOTgUxR6ZmflX5lot/FrnIXKpxKGVZppzZmVM3k+Zk89jh4livSY9QgWex8xPXY4eJYr0mPUNORoyJdABg1gAAAAAAAAAA4/jV8nT6aj1yHSYuNbybPpqPXIauRKVdxcouNYgV3DzyeZRcawCNKKyUY+xF2U29ruWri4Fy56pFq41gL+seaxa1hrAWsfW1XHzxfWZg1MV5yrTU7OH2H12ap1M7HZ42TWKIdHFaYxwv161zX1mZE0Y9RGd5mU2mZYk0WmX5osyRVtDRMLU9j5mTz2OHiWK9Jj1CBp7HzE9djh4livSY9QqZe8K+RLoANTWAAAAAAAAAADjuNfybPpqPXIXuTRxseTKnTUeuQnciUrlxct3FyBcuLlu4uBc1hct3FwLlxrFu4uBc1j3WLVxcDE0wryp9G+uzHwejJ1Z3grxhFyl5s0kZGlXnT6OXXZtuBzvKuv2K66LvGvu9Ku9w8Fb4YmWkxGF1cjX1oHT6VpZs0GIgdbLSIacuPUtZURjzRmVUY00Urwp2hjVNj5ieOxw8SxXpMeoQRVWT5mTv2OHiWK9Jj1Cln7wr5EvAA0NQAAAAAAAAAAON42fJlTpaPXIRuTdxteTKnS0euQfciUqri5TcXIFVxcpuLgVXFym4uBVcXKbi4FVz25Rc9uBiaYedLo5fzJG44Dvw6/Qrro0umdtLo5fzJG44C/OV+gXXRY4s/96fL0nh/9MMjSsc2c7ikdNpVZs5zFI9BlaM/dq6yMSZmVjDqHPuoXWKux8zJ17HDxLFekx6hBVXY+Zk7djh4livSY9QoZ+8KuVLoANDUAAAAAAAAAADjeNryZU6Wj1yDiceNryZU6Wj1yDSJS9BSCBUCkAVApAFR5c8AFQKQBi6Z20ejl/MkbngJ85X6BddGl0zto9HL+ZI3XAT5yv0C66N3F/wBFPl6Pw/8AphnaV3nN4vedHpWWbOaxcj0WVoz92srmJMyqzMSZz7qFlirsfMyd+xw8SxXpMeoQRV2PmZO/Y4eJYr0mPUKGfvCtlS6ADQ1AAAAAAAAAAA4zjcv+TKllf89RvustbaQaT3xnYZ1NGYnVV3BRq2Su2oyTdkQGRKQ9PAQB6eAAengA9B4AB6eBAYWmW70rqy7XK2e1a7/G5ueBFRRnXbdvzK66NDp6r4dJb40M1yN1akl/C4v1o11DGShNSTa2osceOnLW8+zscXkxixxEuz0piU2zn8TUKJ42+8xata52MmWJYZckWUVZGNJlU5FqTKdpVZlRUeT5mTv2N9+4sXyd0Rz8+q/+CBqryfMfQ/Y94Nw0ZOq1bt1eTV96jlcp5+8K+TulAAGlrAAAAAAAAAABRXoxnGVOaUoTi4ST2OLVmiCeGHAXEYKpKdGEq2EbbhOC1nTX0JJfEnk8kk1Z7GB8tuLTs8msmt6Z5Y+lJ6Bwbd3hqDfLqRued72C+rUfdRGh82WFj6S73cF9Wo+6O93BfVqPujSXzbYWPpLvdwX1aj7o73cF9Wo+6ND5tt/mQsfSfe9gvq1H3UeS4O4Jpp4Wg01ZpwTTXIxofNtv8ui3jq8MOnKu7SWyinatN7kl+iv1nlyXeT+lXwcwOzuTD22W7XHYU0uC+j4ZQweGguSFOMfgNIfIWJx7qTlUks5O9llFLYopbklZJciLHbs72Z9j97uC+rUfdHe7gvq1H3TOLzDPrl8erGeZh4vzM+wu93BfVqPujvewX1aj7pn9a/3PqWfHbxPmZ4qrfyYyb82Z9jd72C+rUfdR6tAYPb3NQy/URH1bnXL5k4HcXmP0lVinSnh8MpfnK1SLhZb0k82z6g0LoylhKFLC0Fq06MFCK5t5lUqUYJRglGK2JZJcxWYTMz5ywmdgAIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIWFhUXGB0YFxgYFxgdHRYaFxcYGhcaGhgaHSggGholHxcXITEhJSkrLi4vFx8zODMsNygtLisBCgoKDg0OGxAQGy0lICUtLS0tLy0tLS0tNS0tLS0tLS8tLS0tLS0tLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAACAwABBAUGBwj/xABEEAABAgMFBQUHAgMHAwUBAAABAhEAAyEEMUFRYQUScYHwE5GhsdEGIjJCUsHhYvEUI3IHM0NTY4LCNHOiJGSSstIV/8QAGgEAAgMBAQAAAAAAAAAAAAAAAgMBBAUABv/EACoRAAICAgMAAQMDBQEBAAAAAAABAhEDIQQSMUEiUWETMoFCYnGR8FIF/9oADAMBAAIRAxEAPwDbZ1753gQ2WXKNZSnCnXhGeQgJoOcEtbcTHm5vs9GwlSJNW0Z27zDN6C7K8CmfXpEwidJiUa9ZV9Ysz+6KWcAKQBlVfLw4N9ofSATZc1AId+PX2hfaEndSK4aXVLdHvg1KeiQ+XqY12OzpRxNSS1Txgk+qIasCyWYIN/vG859aQ9U0Rc+aCOqRhUpr+VNOsYKM790C414CuaScCL4WpThheemcwwxaEjectpXSvdBtuKBVNmizo3RU8jGPa1t3EkhwMVXgC9ziPzGqdNCQXu8uccaTL7Ve+SezHwpLVI+Y5i5geOTVU09sfVeDbBZ98hcwe7egEB3+pVL8gbh4dFUyUgo7SaiUFK3Qpat1L33nhGPaNvRZpRmTFMkYYqOAAxJj5H7QbbmWqaVroBRCBcgZDMnE49wFnDhWZ38IRlyvGq+T9B2jYqgN6WoTU30oeVSCOccWbPG8xLKBqDQjQiPk3s17ZWuxFPZr3pd/Zqqkh8MU8o+qbK9r7BtIBE9PZTrhvEA/7V3Hge6LOTiL2GitDkyWp7Hy1Y05XxFzmuLxdt2FPkB5X82XoPeHFP8A+e6OXLtqSWNDr41jOnjlF1JF6E4yVxdmsVOhgUtMO6CW0LiAUXoBhX7CNlnQEil8BJ1pDEvktUthui7GElEO3mhS1UJjopksRaltQRLNLIDm8xES3LmBtdsCEk50AxJNwGphnxSB/LEW6eR7iKrVcWdteHV0atn2QS0sKqvUrFRMDYbMU+8v+8VfiwvYRvI69YZFdULk7YlEpq5+JMQLINQ8O4QC1Pxxjux1BSlDN4GczE3QCka+Ph1lGS2Wk3AOS7HwfQekSkntnNtaQiYveXu4AsfSGqUAwNOF3dlAJSAAxcnHXP8AeKCDjVOF0JlLs7GJUqHWcBVwvOGPKNSQYGRLA51+34h5hMpWGlRVLmhbw0pf8wo0xIjiTSsNdCDfr56Q+Wt77z13wZs/5yETH8i2KSjPrJjjjrBEvTCCb5Rdi/3gLrruu+HaAVkUjMRnYroPx+0NmF8adO8HKXu4VzGMF0aVkdvgiJIQNcTF7/CGIW+UDNk0YYxye/qIf4ETgQL78oGWCRTryhkxgMDXoaYwKWZ/HgPGLGSCS0KhK2Z5iWud+uuUCpRDkimfQ1iWhePjHNVMM47orLxP1cMx58L0K3/ga6Gqmmcf9L/7/inPhf1LFIUohCA5Jp6nSEWSzkkISHJoAOvGPYbPsSZKWFVn4lf8Rp5xY43FeeX9q/7/AGI5HIWGP9xz9p+y9nmyeymJ3jeV4vpkI+Te1P8AZxOkOuT/ADJd+o9OffH25SoAiN79KCiopaRj/qzu2z8uqQQplAg4gisHaSHG6/POPvPtJ7E2e1AndCJmCkjzHpzePkvtJ7F2mykkpK0YKTXrz0EJlja8HxyqRs9lP7RbXZGSpXbSh8qzUD9KsOBcR9P2dtXZu1RQ9nPaoolfMXLHfyj4HZkJUpKVK3UlQClM+6CQCWerXtHX9obFIs89KLJae2TuhXaAMUrcukEXswNPq0hMsaktjPHaPsVs2FOszqbtED5kvQai8eIjPKnpUKGuWQjzfsd/aXNkHsrYszJe6WWxK0ECiS3xvc+BN7O2uyWtU4GapPZla1KCR8oUolI5BoyuRhji2jQ4+WWTUjsKmNQ48eUAz8Ou6MiLWUqY1ej0evnGlSwC9w6u4wmlVosbumXOWwL3QOz7KVntVi74Enz1J6zgrPK7RQ3qIF2p+/XEdNUnKDhGlbAnL4RN3G+D3BcPHPXyhSSRxggrDxEQ6OVgTO6AWc+ustIceR0hFoAZw3A9aQFMK0ZLRP3Ukm5sL4wGaH3lFj9JcjgPCoeGJBUtxUPe+V/F7o0pkIDAp4XUiZzS0RGLezEhJPvF3q2TGnIekb5IuPj11WBTZzg4z5YRqFA3TmFTdjI6Gqmv9h5CJu5QISGzglPhCWwwJs0JB3qAVjjzZSpp3t5SRcA5FBmBjGq2zO0UJbUd1cqgeR7o2ypdBhlSGL6VfyC9mmVKArj4c84LtCCwu6uMWVbxKQ+D0NXyON2EAoNw6vg6rQosrDaQtB3zS7GvWUXKllR0ui94pIDXXXVqMYsQgrX3FykZ7WgXXawkLcgctK6d8bZ6QrjiLn7tX7tIzFDKHePWGU46YGntG2U4SK9Y/eBmLrrAlXWjQmYXpiKG6ufCFNbsO9ATFOWd7uJipswgtePLvDYHGJKSRU1zdn++cYLbM7R5aaP8Sg4P9IIN+frdLm3I5RVCjN7Q7gPuhgpTX5gfc6kRus9nqEpFbgBi9wEKs8ndG6EnABhfhcMY9dsnZ3Yp3lf3hHJAyGuZ5cXYOO88qXi9f/fIrNnWGNv34G7MsAkprWYRU/SPpH3OMaFKgVLgCqN+EIwiox8MWUnN9n6E8W8LeCBjmQMEVMlBQIUAQaEEODxERMNSI448D7Uf2aSZ7rkfy15YHrXvEfLtq7HmWJRROS0w/CM/1cB56Cv6SJADmPk/tZtVO0Z6ZaADZ5CiSv8AzFsxCD9AzxvuYxW5E4wjbLXHjObpHlvZTYe+RNWKXgHE58Mo912bANyi7LJSEijCNUmxqVW4R5zLmeWds3ceNY40ZZFkepu8zF2hYYqWQmWmqlmgAp4mNdqmD4EsAAeQF5PD0jwHtLtbt1dnLJ7BBp/qKdt486AaxY42CWV7E58ygj1tj9qbISEiYwwJBA0d7ubR6GVNBFDfiDQvdHxRU0AkEFhRTJDJPG894xjoWHac2QppcxwPlclKnxSaX0yMaGTha+h7KcOTv6kfW5rjB+sDFb2UeS2T7XoXRZ3FZKqk/wC7Dm0ekRaUqarG/TkYyskJwlUlRfhKMlcWNJbn4a+MYJs7fV7tGpyxPWRhk+YSrcFKOTp5YQyUgAPn4REp0iVG2DKQBRoauWGNH7geXWUBJllNbxrf3484Z8RrQDjCX7oYJlOKA0yy9IZv5hmz8awQSGNH+3rCyY5s5DUiAtk/cFzqNE6k/a8wSPdFTS8vGGzTO2X2pBCQ4lg5OHVzYeEAo/L8JbNNksm6HvJ+I5nGkaN9oIFrq9ZwCpufiH8ohts5KjWSBTowje3i2D4+UFNJLCF2pkpDdeF0XlGv8lZsfMnh90HnmcYzz1k316vhUqUTU559dGLUWZzz8K6Q6OJfIp5PsMkqzqM8rvtBramN1esRAJUx65dftFqlvVOHjh3+kdKdakSo3tFLUOutIQPeLk3Y488xFWpYABLJNWbCp73vjnzreofy0Fyb1D5cr8dP2KXB3URil9x9utJUezl3v7xBuzbUxLJKCUsByiWOzBIpU4vqXJj1eydmbjTZg969KT8v6jrllxudgwSyS6R/lis2aONdn/BNkbO7MBax75uT9AP/AC8o2LVFzFQlSo38WKOOPWJi5Mkpy7SIVQuatg8WTEaDAFyVkk1frSNKYWlMOSIFkhoENBgEiPH+3ftQqS1ms5H8RMF+ElGKzrkP2K8k1BWw8cHN0jn+3XtIqatVhs5P/uJg+Uf5aT9RxyuzbLYNnJQhKQGa7SMuyNmplJbE1UTeom8k4kx15aXLC7OPN8rkSzT14eg4+GOKOxlmkudBG2fat0N3dCClskV6/MeZ9qNs9glk/wB+v4R9CT8x/UesY7BheSXUnLlUFZzvaza5rZ5ZBUf71STQfoB8zxjytqCAyd7dZjQF7qE3NpGv+GUhgb5iQriCS1eIMPt6Ja/eVvS5u6EqZIUFbqQkKDl0qIvweukb2OCxqkZM5Obtma0SFTZwR2RVNmkFpZYTCrHdZ0GlQ4atzRkttimS5ipc1BlrT8SSG3aBvBm5RJFpXLmIVKKkLR8BBDi/G6rmlzFobb7YuasrmLK1qLqUb1EBhyADAQ60xdUKHvKKjQO8atn7amyri6PpNw4ZRlm0ATzMKMA4RmvqWglJxej3OwvaCWqhUyifhVrkr7R6aVNCsWOvTR8dMd3YG3VoIlrVvS/1fLwP2jM5P/z/AOrH/ovYeX/TM+mofEdfeCCX59Hz8Ywy7SRQ9x9fWNKFAuRQtGOqs0GmGvKEhLnyg1E8ev2hFsniWgrIrcBmcAI7bdHeC9pqKyJAZjVf9OQOuOnGOhKQO67OMOzZB3QoklSqqOvVI2LVh13REv8Ayvg5fcqal7vzClJU9G7jDN05wW/p3h45Jo6yrTagmtMvTzjnJmrUamnXrBSRvVBuv0L08ujG6zyy1zsP38x4ZxtQwJLZmyy2ypaiBdd13GKnTRXEfs7a3Ro3sx05v8YUtAJ8IXkk4ugoJSQoTGT9x1rAy7RxB5MXwe6BmSi27n+OqxitFpKUdmkOpX/jU3tk3jhWFupLQxWi7dbXHZy6ret1H++UNsNhCBUVa/rzgtkbOEtL3k4nX7x6rY+y3abMFL0pPzakZefC/seN5JdIfyRkyLHHtIDYmyt0CbMFb0J/5H7DnHTmLhs5TxmWY38WKOKPWJiZMksku0gFmFEwSoAwwAgggIFIhiRHEhJENSIFIjn+0W3JVkkqmzDQUSkXrUbkp1/OpASkkrJjFt0jH7Y+0qbHKG6N6cv3ZUv6lfUf0jpo8HsnZ6hvTZqt+bM96Yo1c6UoBlA2GRNtE1Vrnn+av4RhLRghL3epOLx2ZQel2XWJjC5fIeR9UbXGwLGrZJUouw56ekdKzyyGSO/PWKk2UpwcnoCLnzkoSpSyyUh1nTBI1N0Jhib1Q6WRLZj25tZEmXvmrFkp+tVa/wBKS3OPna1rmLVMmF1Kv04Rr2tb1WmbvqolI3UJFyQLhCWjVw4VijSM/Jkc3bNlntSSgSpySpAfdILLl7xc7pNCCalJo+UVPsJA3paxNQcRRQ0Ug1B1DjWMkRoff3FV9guyT3ju04+vEQj+DALgQxotKyIgk5ykkEuL4Ex1FlJjIqzOaUg1OgWjKEvHQ2PYO2nJQPgSQqYdHu53d+UIMkghCQ61Fkgax9A2FspNnlBIqs1WfqUfsLuUUedy1ihS9Za4uD9SVvxG8h7oKyocvh5wpqgCOhKTugDxGMYBrthAPHJlntZvaf4aaS/1YFeRrQfmNtrBUyBeqqv6bmfM+t0MRJAFKaYdd/GGQqKv5FS2yihvxh6RJUzeP2xb7wJTxEMSj9+qHzjlFP0lsYRC1LanmYGY9+XhFdrqOcT1IsyWG4AvodOhHTlLYHriYudYCj+nA56Uuv8ADuzbzPfXvyp3eMegtGRTGmfXq4X+vIxCcRSOVa7S1xBpTMevCK//AKLJCWdR+FNc7zprFbNDt4PxSr02Wu1dmGoVqDJA4VPCC2ZYGDq94nHEk3nhC9nbOr2iySpQqctAMB1W+OwgMz8opZFS6osw3tlSChC0qWCUAgkCrgVu+0esRaEzUiZLUFINxHloRkY8ksZxlQuZJX2klW6T8STVKx+tP3FR4RZ4PJjh+mXz8lbl8d5fqj6vg9hMEJWITsra6LQGbs5ovlqN7XlB+dOt4xAjWtEbiaatGO006ZlUmA3Y0FMVuRJwpKYalMElMVNmBIJJAADknBoFuiUrM+0rdLkS1TZiglCA6jp66R8rmWle0J/8RNBTLQWkSz8o+sj6jQ9198M27tZW0p26lxZJaqf6yh8x/SMB6sOlZ7PuhuXWcYvO5f8ARFmxw+LX1yDCWDRusNluUaPc/i8VZ7MFMo3Ya5xrqGv074pYfyWsv4GB+F9Xua8nn4mPA+1G2jaJnZyy0lBNf8xWKj5DSOh7ZbdP/SylV/xVDD9IPn+THmpKAA0bGHHStmdkleggmI0EIsCH0KB3YpoYYEiOOAMCRBmAiCQWiA7oKjcPHSGIQ5h2y7F/EzgG/lS6q/UcusIDJkWOLkwoQcpUjsexuyT/ANTMHvK/uwcEnHifLjHp1kGhg0qYXd0XJlbxrxJ/EeYy5JZZucjbxwWOPVB2SU1cMr4dPmBKd48hnkBxMGA0ZX7RT/Km7U3EtiLx44xEVbtnSZdilFnUxJqSPAagQ2Yrn13iCWpqePXWsKN/Drrzgv3MjwiE8365/i+GtR/Pl1XvipY/f1EGro/mCTBMs3KEKW14bvHk4h8wZgEdVb0jMk5Kpx/I8RDYshno0rwNRrjHPt9hBYpPAYj8U72jUE33tcb3Sf1DjFrN3Fx9ot48zhplWWNSPA2+1ErCEAlaiyU9YXl8KvHa2Ps7dZSyCTU6kDA/ThrlG217OaaZyEjfKWNMHJpkS9+LDIQVnXge7KmXOLDyJr6Bag7+o6EtINR3P9om+D1XlpAEUe5jTrL0gk5Gh67orygOjIEiIExdXqOcWvO7rOKzVjbozWqypWAahQLpUCQUkXFJFQdY6Fi9oezZFqPu3Ce1B/3QKJ/rFM2vOVJrW+EWovTl1pFzi5p4tLaK2fDDIt+nsjLxFQbjnAbseO2ZaptjA3Pfkk1kn5P+2r5T+k+6f03x67Z9vlWiX2kpTgUUDRSD9KkmqTGzjzQyK4sysmGWN7CVQPHy72228u1zTY7OppSS0+YMT/lpOWeZpc79L+0L2pU/8HZlfzVD+Yof4SD5LIPIHMhuFsjZiZKAlN2eep6+0UObyui6x9LnD43Z9pGvZ9lTLAADABuQH71jr2ez7x0F56xhciTvlgOOkdRMvd92MOMeztmw31VIrc7hHE9qNu/w6AE/3qwdwfQDTfIzvZ/WN229pokyitVRckfUp6DgGL9CPnFonLmzFTZpdSj0BpGtxMD/AHSM7kZV+2IqRLapqTUnONAgQIMCNEpliLi4qJOI8UTBAQKo44WYjQbR0LEhMqWq1TUgpQd2Wg/4s1nCdUJopWjD5oFuiUZ7ZJKEpkJDz5wBV/pSzVIOSlhlaJb6iI9ZsjZaZMoJ7zmcTHN9ndmLc2icd6bMJUp76l7849EFuNdIwubyXkfWPi9NXi4ei7P0JCXDX+caZcvdFICzS2ricerobMmBI3lC7LF7hqSWEUEtllsTaSSN1Lufirck+RNQDoThD2ADN5P+YlldIJPxKqcRoAchd4xc1jeGME/t8AGYvxg5Y6/F4iFJFfLrwhiQDyyw44iJs4pKeRPXDy5wMwt6w1iL8cc+IhE1WXXpwMEiBcxVx7uflHPtE5lVDng/i4jRaTWjg5fi9uD8BHFXPINQr/aqngCPGLGPHYEpUe6kzd4ALLKb3V3sMlZp144QMyUUliACatgdUmCZg5vhcm2XhQeXifpJxSc41MnH720ilHJ1CDQq0WQFyGf89d8MmJuUC6Tcq7kRgdDE7ZozfqhItakjMokB8AwI684BKndv3/EaJhB0IxEYy6C5xxz9IbKXZARj1ZrQCxe4dUgJ36ajGnTQk2hxS/8ALQTtd11WFpX6GwJs0Nyq+HGDs6Kbxv8AlfKrQ1FmCveLtk9/49IdQwyUuq6r35ASt2/DKrF+/wBY5Ns2SFl0zJklTNvyllCt04Ej4hoXjsWhHd1fERJc07s9NThEQbXnpMkmtnn9l+ycuUCtKipSi5MwuVG8kqxxw846Sdlqvcdco6swacBwiu0Fx4A5a9faBnjU3fyFCbijLLs4RQX4nX00iWqcmWlSl+6EjeUrAD1OH7O+YGFak/CXvbPQXmPn3tttNS5nYJJ3EF1H61PVR0wHDgz8PHc3TWhOTN12cra+01WmZvGktNJaPpHqbzCQYWkQwRqrSpFH0YIMQtMGIkgKJFRHjjiExAmIgYwYS5YRDZxp2Xs8zpm6CEpAKlrN0tCQ61q0A76C8iN1ilfxk4TAkpssj3LOg3li5WrAqUXUo5lrgIK1pKW2dKP8xbKtix8oFUyAf03q/UW+UR6eyWIS0BKAwAYcBGXz+T0XWPrLvFw9n2fhGa+/SFS0ufew7uGl0ail2TjDkSmpeLq+sZEDRkypKyTUUz9YOWreXvGqU3HNVxLZCo4vkIpaTRCKKV/4gXn7AZkYPBhG6N1IYAMB4AawbSAthzpaVVGPcfSMzKFGpBKVWlD1eIelYuLfb8RG0cBKVz0xghLeov7u/wDMXMkvr5/mB3s6tiLxEJJ+HWRRId/D7j7iMi/eqDu5ZHvpGqfNcN8WoF3ECMk5DBwb/HiMfOCSOObb1sGVdfV277weDxwpqyST5+ov4x1bZNcEMRVmN3Imo4RypvulgpQ0AX/xpGhijSK2Rnv5kwqNLhec4YJA3Xq3nqR5coKTKCmJB3RmPiOf9Pm2UaZgxPH8xtzaiqRnY027YlKVJLMGxGBEXNkBnFRiMU/iLJjP2taFmN8U8mFZCzGbiKWlq4ZwBD0vEOROC6D4vp+rhkdIgSCC3MZcYzsmOWN0y1CSls5Nos5l+8lyKOBeNQ1990bLKtKg5qPTD7Q0poT4Qo2cpqmovbXSIjJV+TmmbVTAad32hbtS/wC93XTRhs9prWoN4xFdY3hLAF3fwwgo42tkOaeghWjsMe+/xvglSmFBfcOuXhCkJPBwS73Nd1i4zhpnhgCzu45YdZQxRtfkW5U/wAqbvfEWOfr4wuavdqRrTHCjYnzpEnSwXJNWJ874XZEvVV16RkW+Ljlo+dCS6q2RdukMs8klO89TU6B3anOufKPF+1ez96ZvMEGiU091QAYVwXQ30OGnvk09YVPsyZoIUkMXocm/MFj5EoXXgM8Kl76fHlyyksQQRgYgj223PZ0gUBUnDFaRp9adDXWPI2myKRW9JuULj6HQ1i9DJGatFWUHF0xQMGIAQbwYJcUkOdIF3hgyiTgo6Umf/Cyv4kh5yiU2ZP6x8U0j6UYZrb6TCNnWdKiVTFbspA3piskjLNRJCQMyI17EkKtc/wDi5id1CfckIwQlNEgZtniXN8VuRmWODbHYsbnKkdP2X2OZMveXWav3lk1LnA9Yx3wphFBFL2wEGhLmt3hHm5TeWVs2FFQjSGS0MNTFzJoSCSWADk9XxRLa9eOEI3e0X+hBr+pYuHBNTxa4ph6ikhTlZpsZKXUsMpTf7QLk8q8yYOfMBp4+sLmzcDeeucBLltXHW4wuSt2Eguxat/XV8WzRpkqq1x1hnYg3UiE38nMzBLCncYJweI7/AMxUxJGDeXHSFzjgcO/kYPrZA5VnxF+fqI521iWBIYuzhmUDmDG2Rain4g4zF/MRl2pNEwUF13FsWgo+7IZ5y3TRVS6MMPtSpNwGLtGzZNjWJblSklR3lAZsB4AAcoyykb00J3h7tS4NVn4RlQHeN94yj1ElNKjuuizkl1VIVFW7Z3JgFONPCErucxpm1jn2pZNB35X+Mb7hbMxSpCJ68jx0041EZJk4APgKfiLta2oKDPH8mFIQVaZafmDUEkQ5NskuTvV7/SNipgJAJZd29hky/J4tA3EsA5wredTAypLq3i7Xv9/EsIq5Yqfvg+DrS9DmrqxG6oXjA6iMgfn5mN01lUUPdFxF6eGfCMM1JBZVQfhULj6HT94y5Y6ei4pfcTPG9W5Xm0RFqNxoQeRFT3wUxH79GFzZRZi7acfHOOhk66ZEoXs2ypuRupWrn1xhcw0oWzF+dxNDnnWOXvlCg9xNDrr4HiO7XOmAkAFgzuDd8VRno+JOAaLcakrK0ri6GIKlliPdBur/APEDKlcMM43BIalXjLLISAMcCOTv1XjFpmVLOD5wjOnY7DVGtEzu6/MMByjID+YYlxUXxVcmvB6VjVrwUI4O2th7zqQwJvce6v8AqH/IR2999DAhTUb0MTHJKLteguCapnzC12EpU26Uq+g+aT8w8YwqVH0HbtlTNKZSB7x94/pGYyJuHPKPMba2KuV75BUn6wKj+tIv4iNTDyYzSvTKWTC4+eHHTSGyUFRAAcmEEc3uIuMDa7SUAS0VmLoALw8PbrYpI3z/AP1ExNklKaUg705YuWu4VxSH3U6lRxp7mwSwhIQwDUAFzCOR7PbDTJlBKg6iQpRzVhyEdy+j1+3rHnuZn/VlS8Rr8fD+nHfpoSkqLDgPuYfLlbqdPvFWaUUgO/oBdDrRMG4S4DC84AXnlCIRoZJnPtc7dYJvUWFHbNWoA9MY12cpSkISKAMD6nM3vrHPkjedagyjQA/Km8UNxN54gYQ+Wkgv0YfOKaoVF/JqNnzrDpMhXypKhoCW53QmTNyNY6FntKRLKSoJV2m9UGrANdqB3QEI26ZMnrQlMlRp2ayNUl37oPcmAf3a1DgXEFPmJSoHfFVumiqAqJp7rH4rtYGTakboKlpYON7dXQlKRdu5gjXnDv0o16L7sMoO66kqbVJDRitNnJuqMo2z7SgoWyw6iGKQqrLUou4vYs2kEraaQp/eSSoHCtA9XvZN2sA8aXjDUm/g4q0tQRjt87cTvCqiQlIzJoAefkY9Gi1pYO9GdsWQE1c515CPM7T2gZ0xXZKV7lAAb1hUsqU71bcUlzWqs4Zigm/QJya+BFg30MJiHRcViruSSTS8kvHobKUqS4WG1IhFmnhSlAXPcQxAwDXEAU5QapCFVpypdEZHbJgqR0Zq6thjXwjJaJ4uBuESJHq5KtGJF3s5yPfNLsBnmY2b6UClTi15OAGsSJCsm5qHwMg6g5fJJYdVb6BeScdwHuJOLxoWmrRIkVM+9FrD5Yhc2m6BC7NKICi4KSKjBWvhTi8XEiJRUcevk5Scp0yt0MSmqRQ5oN7HSt8Mlo5jyiRIzM8VF0i1jdoC02NJFw+x6eMBsfZ3JdN5YVD5Zi6ndrUSFQm0HKKYSFl89cD1l5RqlqzuvGnrw4xIkaEfKKkvRoGPdEK6eRiRIoZFUmi1B3GxazjjCbVbxLT7wcmiAL1HCLiREVbpkvSsrZ1kIdSi61VUdchoLhG+a27W/wC33ui4kDJvsElo8Vtj2JEwlcmZ2TmqR8J4fSYrYPsUZEztFEzFYHLhrEiRGTkZJR6t6Ihign2o9IJRubwjTZrMxduXlEiRVUVY9yNsyW6SM458yzmaogfClt6/3jeEHQUJ/wBt4JiRIbdK0L9ZU2WX1674JPRiRI5M5jFGlIVOWwiRIbBbBfgmVbz84dNX+1OsIfLr8BcD5cRqM/PjEiQeVUDDYKJv0kOb8uWUQTbwzaRIkKaDFbTn9nL3UllzCUoxYs5LZJSCeQzjJs2QkJSA7AboLu7Y3u5ziRIbFVAW/wBx25UkEOatUHEFsDHMtKJj0UkjDev0iRIBPYR//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBIREBIVFRAVFRYWFRAVFRUQEBYWFRUYFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGi0eHyYtLS0rLS0tLS0tLS0tKy0tLS0tLS03LS0tLSstLS0tLS0tKystKy0tKy0uLS0tLS0rLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAADAAQFBgcCAQj/xABOEAABAwEEAwoKBwYEBQUAAAABAAIDEQQFEiExQVEGBxMiI2Fxc4GxFzIzUlNykbKz0RQ0kpOhwdIVNUJ0gqJUY9PwVYO0wsNFYuHi8f/EABkBAQADAQEAAAAAAAAAAAAAAAABAgQDBf/EACQRAQEAAgICAgICAwAAAAAAAAABAhEDIRIxBEEiURMyYXGB/9oADAMBAAIRAxEAPwDcUkkkCSUYb4DnuZDG6TCaOeKNjBGluImpPQKc67Nul9Cftj5IJBJR30+X0P8AePkl+0JfQ/3j5IJFJRv7Rk9Cftj5Lw3nJ6H+8fJBJpKL/ar9cR+0PkmF57rG2ZpfLBJgAqXtpIB2N41egILGkqCd9ewebP8AcT/6aXhYsHmz/cT/AOmgvySoHhZsHmT/AHE36EvCzYPMn+4m/Qgv6SoPhYsHmz/cT/6aQ317B5s/3E/+mgvySp1xb5V3WucWZr3Mmd4rZGOjxHY3EAa9iuKBJJIVptDImOkkcGsY0uc45ANAqSexAVJZna99yNsjmssxLAaBz3ljzzlgYcPtrtpoQxvvN/ww+8d/poNQSWYjfcZ/hx94f0Lob7UfoP7z+hBpiSzUb7MfoP7z+hejfXj9B/ef0INJSWb+FVnoB9t36EOffWIzZZMYAJNJSHADY3g8/ag0xJZWN993+Ak+079C6G+67/AS/aP6FPjf0bakksqG/BJ/wyf7TfkvfC/J/wAMn+01PG/oaoksxbvsuP8A6fN0V/8Aql4V3/8AD5vaf0p439G2nJLMDvwxxub9Isc0cRIDpaEhtTSvi0OnaFpVltDJWNkjcHMeA5rhoIIqCFGtAqSSSBIVrJ4N9DQ4XUOsGmlFQrV5N/qu7kELdYwRuDB/GWtboHjYWiuoaFGbpN2NksD+Dmle6XLE2NrKNroriH4VJUrdmg9cffKyffHum0wXg+cQulY84mOwl7eM3C5rhQjRUUOoihCtjJb2i+umn3ZfEdqiE1nmL4zro0EEaQQW1BT2xWkvxNdTE2mYyBBrQ01HIj/9WdbgrgnbdtpjmxQG0l2AUOOMFuEOpUbebQr1dLaPIrWkbBU6TQkVUVKTcUF5RHFBeVAE8qJvzyY9ZuWrxhkpR5UTfh5Mes33gpgzu3xBk0rBobI9o6GuIHcgJ3e/1mfrpfiOTRdlCSSSQJObvsT53hjNOs6gNpQIoy4hrRUlXrctYmsblnXMu2n5K0x3258mfjDG3bmrLELOXgmXhWYXa61z6ARUEc60ywSF0UbjpLGk9JaCVne6e01tdlj2PYT2vHyWg3X5CHq2e6FXmmpjUfHtsuzpVLfSkLbtkoTxpIQabOFaT2UCtqq2+T9RPWM7yuDQ+fLXaWGR3HbpOsIYtDPOb7QoN0YDWuzq4v0igyOkHXp/BGqwENY0vNKk56szQDUNqlCZEzfOHtCI142qMLW0a5hq1w0awdYKObQ1jRpLzoaMqDaSpEiF00ry6bWTiDiWytObDkaaO/Uu56Y3U0V0ahXOiD0FPrrPKDoPcVHgp9dZ5QdB7kDuKOgA5h3IzWpRDIdA7kVrVsx9RSvGtRGtXTWojWqUOWtRGtXTWrsNRDh0QcC1wBaRQtOYIOkELT9wkWCxsjB4rDhFdmFru9xWbtatM3G/Vz6//jYuHP6i+KdSSSWdckK1eTf6ru5FQrV5N/qu7kELdJ4p64+8VDbr98GyWCTgXh8kmWJseGjK6MRcRnTUFLXOeIevPvlZFvjXDbIbwknZE+Rj3Y2Pa1zxnkWuoDnpFDqVpJb2itOui/IbbE2eB2JhNCDk5rhpa4ain12nlH+qPecqHvcXBNBYphaA+IzuJDATHIxtKVGthz6RQK83Xk9/qN73KBJPKA8or0F5UJBeVEX8eTHrN94KVeVD3+eS/qZ7wUii3v8AWJ+ul+I5NE7vf6xP10vvuTRdooS9Y0k0Aqdi8UlZ2COjaVkNC4eaNTTz6z/8Lpx8dzy0pyZ+M26YGwN43juyJ2DYE8st6vAowmnsQZrMDxnZldxtAGS9HHDGTX08/LPy7rzgXSWmGQuJPCMrXYHBa3dfkIerZ7oWXWHysfrt7wtRuvyEPVs90LB82flGz4t6p0qrvkuAsNCdMjAOc5mg7AT2K1Kpb5kWKxtNfFmYemrXtp/dXsWJqfMLqYGUpXE+ozqMxpBy9icvDAGuhdR58atQ4ZUOEjIg9h06QmzzxGafGk1mmkaAch2aexeOwtyJqddNAUoPCGNDWsNaDN2onmTqOKMtxZcIP4XAuY4UzBpmNRBz0UIzTB8WHCagtcKgj8QedTFxXLPay4RYAGir5JHCOKMbXv1D8UCsrC5xllcXSmnPkNZOs5JzI6rj/vUES1XRNZwHPdE9js2SwyCWF40VY8aU2xZ/72KQYFPrrPKDoPcVHNKfXWeUHQe4oJqzN4regI7WrixjiN6AnIatmPqOdctaiBq9DURrVKHIaiNavQ1EDUHjWrRtxxHAO5n583JxnP8ABZ6GrQNxkdIZDXxpa9FIYm/9v4rhz+otgsCSSSzuhJteMmGGR2xju5OU3vFgMMgOjA7uQQdzHkz17viEKF3R7trPZbZHY38IXPLMUjcPBxmQ0YHazUkaBkCOdTNwsD4ZGnQZZOY+OcwdRQLfuYhmnjtEjYnzx+JK+MmQU0Vo8NcRUkGmVcqKUK/uh3Uw2W0ss7xK4kNc97cGCJrnUaXYs3VochU0BVmusUe8bGNFTp0u0+xM7w3KRTyxzTNifLH4jzG6ozqMsdDQ5itaKXs1mEYNCSSalx0n5DmS6BHlN5CivKbyOUJCeVD7oDyX9TPeClJHKG3Qu5L+tnvBShTL2+sT9dJ77k7kuRwNl4wLbRwYxAeI59OK4V00cDz57E2vltLTOP8ANefa4n81cdzUVQyd4dwAihbQt/jh0SNHMagO2Fy6zd9K26RV3bm5WsdKWF0gB4NtKgGtATtP4V502sFgkNS1rnEk1NNYzNTqV1tlvjAaRkKYQA0F2Yw1xdB6e9RlslwPfEY3Brw9xLo8beExiSUhtc2AMaNooDRbOG3Ga0yck8vdQtpssmFxwOozxjQ0bQA5nVkR7VHsJOhT14sdMxsesOBpRrAGiMNFWjxddAamlKp7dl1Mjo48Z+3UOj5rvOWY49uP8feoZ3Tdhq18mVDUN111E/JaBdDq2eE/5TPdCrparFdDaWeED0TPdC8/5OdystbeDGSU7VW3x/qJ6xneVaVUN9OYsu5zgASJIhnozeG/mszu+Yn+I3RpfrJOkaRoHZpRHR8HRzC1+IbRVpIo4Fp6cjq6UWW78Li3FWhOfavBYudSgN0eCgxVOk00A7FatzNpiNknsz5mQvdMyeOV5LYXOYws4GZzQS1priB0VCrQsZ2ojbKRrH4poWq/JYo7KyzRzsmeZ/pD3xEmBnJiMRRuIGIfxEgUUPG5M2QHWU6aUBwU+us8oOg9yjgU+us8oOg9ykWewjk2dAUxPdhbDFMHVDxxm0zZVzmtrtBwOz2joUTdmcTOjuyU0+3uY2EtiMreBdG+EPjbLKwSPc8xMc7E+mkEA8ZnMtW9SKfby0XTI18jWjE1j3tBq1pdwZIJa0mrtGdK0TN2T3x0rJGWtextHOaX1w1porhca6KNJ0AlQ1574DZZOFD5IuDfKWRsgs0jpGulfJE7hpKmFwx0dQOGVRmSmVkvx7DBEbNJwrgyz2wuZG9z5JrKbNYywSEtc7gsb6PoHYnDRml8pDUWKK0lzsLI3O4gfjaY3RYC7BjEodgIDsia5a6LqwW6KYVjdXm1qlXhfsf0eWyBz3cUNB4Cz2SMPFpjlkAih0CkQFS5xLtg087lLw4C0RvObK0e3a05EdNCU3Yi6aIAtA3IeQd1n/jYqPNFhc5ta0JFdoByParxuR8i/rP+xi583qJwTiSSSzuhJpe7iIJSNOB3cnaaXqwuglA0lju5BCbmXck/rpfiFSxKhdy7uSk6+b4jlLFyD1zkJ7knOQnuQcvcm8jl0+TVr2a03kcpHD3KG3RO5H+tnvhScjlDboncifXj98IhB2+zGW2yMGuQ1OwDSfYrtJZ6xxDCQ0MIFojJa2NrWUGOopkKtIyOSY/slzHySihdI4musCuQ/NRtvDjRjtDTiAPPkfyW7h49ydsnLyd6Skz2tYeK4xtZEWSmNgYXVZU8IXcc1xAtplnlkn9stUr3cYUwOtbMWEAjkcUZrTKoJptpVUy1w5h3YU5uxoL2hd7xfbl/JudLTaIGsa7C04Bh4N2BrQc9OOtX1FSfyQbPNTI6EMQ0XYYueulz9zgBXs9uSnrlNbNAT6JnuhVC8ZS1sI2ysH4q33KKWaAf5TPdCyc2OtO/DfZ6qRvvyEXdTzp4gewl2Xa0K7qj78LCbuBGhs8RPQSW97guDuwG1nlHdJQwV1azyjukoYKsgQFdAoYK6BQEBXYKECugUBgU+us8oOg9yjgU+us8oOg9xQSc96OZCGNOEAcaQ5DM1oOfNPrsPDfQyYm2iAYQbwjmNjnsgEjnOEjseRjJc8F7cwRQ5qi31MTIQSSG0AGoZAmnaowgV0BapvxmulWpN+htszTHE2ayfR3mSXBA2Mzhr83yPJlZJjDMLNYwAVBKlJZnWiU4XxNb9JumapZZ8Logxwc5j2txeOA2pzaQBkHFY42la0z2608szgCqXH/KNtCtVms7Y3ckTZ+BmM5w2ZrRaeUxcJK/lmyiTDhaNIDABQlUawvoQnV+xiaKO005VlIpTTMtpyTydopgJ9QalG2Z6vjOkW7bHdsxkhjedbAPsjCO5XzcbJWKYebNQfcxO/NUHc3xrBZnDY9p6WvNPwIV+3GsIjmJ1zVHRwMQ7wVy5fUTgsCSSS4OhIVr8m/1XdyKhWryb/Vd3IKruXdyL+vm+K5SpcoTc07kX9fP8Vyk3PUgjnqFvQF8zGYn04GZ4a2V8ALmuiDcTmZ04x26dCknPUfbrHHKWufiDmggOZJJCaOIJFY3Coq1unYgjbAxj5opiZRI6zMcYzJIYxUAEEF2Zz0Eac9KlJHppZ7DHE4vbjLiMJL5ZZjStaDhHGmexdPeiCe9RG6F3In14/iNUg96ib/dyJ9eP4jUF2jbUBNrdYGyNIOnUdhRozkEVpWnG2dxjyktUqaAguY4Z6DzHagQEsdzg19ism6KCmCVumuE97fzTC9LG1oZI2mF4BDf4gTpatuPJLJv7Z7j47OPpjTrXUc4KgZWvbpBC6gnIU/x/pbzTF6mv0frWn8QrzdX1eHq2e6FQZnYmwO/zQPar9dX1eHq2e6Fh+T1r/rXwfZ0qZvufut/Ww/FarmqZvu/uuTrYfitWVofO9rPKO6Shgrq1nlHdJQwVZAgKWP/AHkuQVw+tTkSCAMqc+3pQHa7OlO1EBQGONTUU0bDt2IoKAoKfXWeUHQe5RwKfXYeUHQe5BDXseWf2e6ExqpW8JwJXUa0Goq4jG48UedUDsAXLLaTk5rHDY5jfyFVpmXUVRrSnET1Ifs6KYclycuphNY3cwJzaemoUUQWktcCHA0IORB2FTvaFluICUmBxo2UFldjj4jux1CoJjXMcWuFHNJa5usOaaEdhBR7BOWuBGkEEdimd3dlDbRHaWDk7XE2UbOEFGyt9uF39aRVe972bHdzm645z7HtbT8arTtyfkX9YfcYsc3prTX6VD5zGPA52Eg+8Fse5PyT+tPuMXLl9LYe02kkkuDoSFavJv8AVd3IqFavJv8AVd3IKRudfyT+vtHxnqRdIoS4JOTk/mLR8d6fulUoHdIgvkQXyoL5UBHyJu+RcPlTeSVAR8iir8fyX9cXxWp0+VRl8ycl/XF8ViDRI3igyRmlM43d5704Y5aNdMXl2De8eKF45q/Zz/JViwuHC5q2zirXDaCPwVMjdR4PQtPB3jY58n9pU9arOHN0KuyRUcQrFFag5qhpxVxK6cds6qnJRbCaswn+GSNw9tD3haJdX1eHq2e6Fnl2DjOHM0+x7StDuryEPVs90LJ8v+0a/i3eNOlS99391ydbD8Vquipe+9+6pOsh+K1ZGp86Wo8d3SUMFdWo8d3SUOqsgQFegoYK6BQEBXQKGCugUBQU9uw8oOg9yjwU9u08oOg9yCJvQ8s/pHuhN2vRL1dyz+ke6E2DlonpVIQTUUla7P8ASmYm52hjdGuRjRmOd4GjaMtigGPUjd9sdG5rmmjgQQdhGhQrTOCRXqOL6bckjRnLY5OFbt4MjlB9kuP/ACwoHdNdjcDLdA2lnmJEjBohn0vZzNd4zekjYpbevvMR2vgn5xzNLCDoJAJoekYh2qdooO9tb+Ct8VTxX1jOzjDL8QF9CblRSKQbJXD2NYvmi8LE677dJDnyMoLDrLKh0Z7WFvbVfSe42bHZ3P8AOfi9rGFc+VbD2nkkklxdCQrX5N/qu7iioNr8m/1XdxQZjccvEl/mLT8d6fOmUBck/El/mbV/1EifOnVkHrpkB8yZunQXzqA7fMm75k1fOgumUh0+VR17y8n/AMyL4zF66ZML0l5MdZD8ZiDU2O7z3pxG5MmO7z3o7HrXrp5vl+VPDoVRjhqfYrM6WgKhIIsgdoV+LqVXly9Oo46BM5G6VIhtEwtTwAuuN3XK3bm55uXLNrHfgK/ktHun6vD1bPdCye7ZCLWw9I9rSFq90/V4erZ7oWb5k/Kf6eh8Waxp2qVvv/uqTrIfitV1VK34P3VJ1kPxWrG1PnG1eO7pKGu7V47ukodVZDsFegrhegoCAroFDBXoKAgKe3aeOOg9yYAp5dp446D3IPbRa8L3DCwjKtY2EnIaSRmhOggl0t4N3nsyb2s0eyiZ3k/lX9I7ggsmXX6UsK3WGSGmIVYfFkbmw/I8xQo5FMXfeWHivaHxOydG4VaR0fnp2UKJfu5wxxC12Wsljd438UkDvNk2t2P9tDpnZtM7gbxic99itIxWa1DA4HVJ/A4HUa5V24dihb2u2a67ZwbjVzHB8cgyEjK8V46aEEaiCFCQykEEGhGvWtcdCy/rsaQWi3Q5NcfSADE1x82QAdBz1JO0XpEb40LbRDZLxjzD2iGQjbQviJ/vH2VsW9ua2CPob8KNYxuLkNqs1quqbiyEO4MOyLJWEloI1Ue2h7Atn3tQRd8YIoQG1B0g8FHUFV5LuJw9rSkkkuLoSDbPJv8AVd3FGQLb5KT1HdxQYfdM1GzfzNq/6iROnWhQlimpw38xafjvRnWhWQkXWhBdOo91oQ3ToHzp0J06YumQnTIHzpkxvOXiDrIfjMXBmTW2yVa3rIvisQbNG78+9GamkRyThrltnp5Fv5UO8ZsLDtOQ7UBpoANmSY261B0o1htQNldZ9tB2LxtpXaYXSMpafySUCgrVKXOR7ytmFih2Wg61fD8VsMPtJXe3loz/AO4LVbp+rw9Wz3QslsNpHCRDWXha1dP1eHq2e6Fk+bd5Ru+N6p2qVvwfuqTrIfitV1VJ34f3VJ1kPxWrE0vnC1eO7pKGiWnx3dKErIdL1cr1B0CugVwvQUHYKd3ceOOg9yZAp3dx446D3IBW27Jnyvc0ChoQS9ja5DUTVMbTYpohV7CG+dk5v2mkgKXnko89ncEaz2shdfpS1XGyK2bhd04sk2CbOzS8WQEVDa5YiNY2jZVR1ruqOTjRUY/zf4D0D+HsUHNE+Nxa8EHYfy2hR6OqvW7vcNwGK02MVs5zfEOMY654medH3V2KG3DbpDYbSHE8i+jZBsGp3SD+FVa97LdRwjRYZjV7QeAcc8bdcJ2kaW81RsTbdvuHHGtNjblpfCNW1zRs5tXdfXW4rvXVTm7m6ix7L3snjMwm0NbniZlSZvOBSvQ06itV3E2gS2YyClHvxZaOMxhy5s1ie9nuvwUsdpPFzDC7MYTpY6ukU/DoW3bjYGRwPZGKRtkLWjTRoYwNHsXPk9bWw96TySSS5OhIFv8AJSeo73SjoNsYXRva3SWOA6SCAg+bYpaOm/mLR8Z67MyZvdhlnadInlqDkRieXUI20cFyZFZB0ZkN0qbmRcF6BwZVwZEAvXJcgMXoNpfk3rIvitXJcuHGroxrMsf4SNJ/AFBt0ByC9tk2Bjjrpl0lAs1pZhbV7K0H8TfmovdLbmUYwPbmc6OGvL5r0MJvTyNbyc2epGKmnR0avn2ryZ9NRR2TxU8dn2gg2u2MaKtc0nncPmtG1u3MlnxltdA1JvbrKBmERt6x0FSK0zoRkUp7dC5p5RvtFVKZs2sLOVi9dveFsd0/V4eqZ7oWI/tiKOaFmJrpXyNDY2uDnZnMkDRlXpW5WCIsijYdLWNaekNAKwfMuPlJG348ursdUnfi/dUnWQ/FarsqjvrWJ811WgRirmGOQgZnDHI1z6DmaHHsWNofM9p8d3Shru0Hju6UOqsh6vV5VJB0vVzVe1QdBOruPHHQe5M6p1d7uP2HuQe2x3KO7O4Lhr0Ce1Nc4nEMztC5E7fOHtC0TWlEhHNRSlmgitY4CSgkPk5DoxamuOw96rzbQ3zh7QistTfOHtCio0b3hd01llIOJr2Go1OaRoIP5rWNxe6oW6LjEC1MHKt0Yx6Vo94ajno0V+zXjZLxg4K0yxx2qMcWZz2txtG0k5uGsaxnpBrTpsVknD4pmCVhq2SN7XA9oOYOxRL49w99Vom6zcS201nslI7QONgHFa4jOrT/AAur2dC1fe6DxYWiQUkqMYIocXBsxZas6rJLt3wrKYDLMcEzBxoG54zqMXMdh0dGjXt74yOsMcsowvl5TDzOAAPQaVHMQq8vj1YnCWe1kSSSXF0JJJJBX703GWG0SumfEBI7x3NpxqaC4EEV59KaeD27/MPsj/SvEkHo3vbv9HXmoz9K88Hl3+jPsj/SkkgXg8u/0f4R/pSO95d3o6djP0pJIPPB3d3o/wAI/wBCFLvaXa7Sx2gigLWihyIyakkgbeCS5/QH2j5L1u9Lc/oK9o+SSSDzwSXP6A+0fJLwSXP6A+0fJJJB67eluevkKc1RTuXngkuf0B9o+SSSCRuLe9uyxSiaGAcKPFc6hLecZaedWpJJAkkkkFPt+9ndM0jpDZ8DnGruDc6NhO3ADhHYAm/gpun0T/vCkkgR3qbq9E/7wr3wVXV6J/3hSSQLwVXV6J/3hSG9XdXo3/eFepIF4LLq9G/7ZXjt6q6SM4X128K/RsLa4T7F6kgH4Jbn9A77SXgluf0LvtpJIF4Jbn9A77SXgluf0B+0kkgXgkuf0DvtJeCS5/QH7SSSBxYN6+6IXtkFmDnNNQHkvZXnZ4ru0FXIBJJAkkkkH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEBUSExIVFRMXFxcVFxgVFhgVGBoaFRgXGBcSGhYaHSggGholHRUXITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGy8lICUvLy4rLS8tLy0tLS0tLS0tLS0vLS0tLTUrLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0uLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAABAUDBgcCAf/EAEkQAAIBAgIFBQwHBQYHAAAAAAABAgMRBCEFEjFBUQYiYXGxEyMzNFRyc4GRobLTBxcyoqPR8BRCUpPhRFNjksHxFSQ1Q2J0s//EABoBAQADAQEBAAAAAAAAAAAAAAACAwQFAQb/xAAtEQEAAgIBAgQFAgcAAAAAAAAAAQIDESEEEgUxMlETQXGh0SJSFSMzQmFigf/aAAwDAQACEQMRAD8A7iAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABy/lN9JmJhWdPA4ONSmv+9VnaMumME1ePB62d722X6VjH3ufmy7Gcd0lC9Og0rJ0oP2xTJ46906Zerzzhp3Q8r6SdM+SYT73zj3L6RtNJ2eEwl153zii0PgalJSVSq6l5XV7u3Ha8r8FkiycvaaK9PExztz7+I5InUan/k/lK+sfTXkmE+984fWLpvyPCfe+cRJzPqrE46Ws+6E+JZvaPv8AlJl9I+m1/ZMH975xjf0oaX8lwnsn84+TmrFZiXme26WkfOXtPE80+cR9/wArWP0n6Yf9lwnsn849v6SdM+SYT73zis0fXpxjOM6WtKWrqT1pJwz5z1U7SuuO9FtXxFDVerSl9u61pu+pqW1Xbfr8666iqcNf8rJ6/L/r917yf5e45yj+24CMKDV3XoT1lBfxSp3k1Hpv7TpCZo3JFwnSsle6cZq98nud+v3m16BlfCUHxo039yJRkrFZ1Do9PlnJSLT9k8AEF4AAAAAAAAAAAAAAAAAAAAAwY3wU/Nl2M4/jfBUF/g0/hidgxvgp+bLsZx3HytToehp/DEuwepz/ABL+lH1QHdGfCwcnq8dnS+HWQp1H+v11nyNSx0IhxNM9WVsvVbgSP+HzX23Cl0VZxhL/ACN6/uPGJxDoc2Ph2rznvp6yuqcHunZ86W1X1VazvXUKes5XnGNlKV5X5zWeqss5Mb9l1cXutP2KTyhOlUb3QqRcvVBtSfqTK2tTabTTTTs08mnwa3MxV4rJ6yd9q4dZNwuL7tajVef2aVSTzi/3ac5b6b2Z/ZvdZXTjNvdP4UfJDhtuTe63RFVCV2tVpptNPamtqfSj7Zraedqq0ctx5AVbVZQ3OLfsOg8n/FMP6Gl8ETnPIaS7qrbbO/UdG5PeKYf0NL4ImTqPU6/h0/y5+qwABndAAAAAAAAAAAAAAAAAAAAAAYMb4Kfmy7Gce0lh5OnQaz7zTy3/AGInYcb4Kfmy7GcyUE6WHu7d6p/DE0dNrv5c/wARiZxxr3ahOMk7KLbMuhpKWIpRkrrXTknwhzpL1pNGzvAK739Gw8LCQhOE9Vq0ldbbxvaVt99Vs3zrXEuZj4mO6GqYefdXKU23OSqTbVs5asp3fRdeu+4ShHUTTd7zTu8nqqDVlb/yfX0CroyrRlOOTcNeD22s046y6M7p9Rh7r3uzb1k2/wDMop3fUvezyF3bDM6UZRWqrc+ME3JO+te7kv3c7W3bdtmyNiorWyXNbaTU1O9uLi7J2ayPVXEpNtQSbfOTzWTT1VHcrpXWezKxhhK/NhFq7TtfWlKWaills5zstvOzbIc7W6jTYqlTvsJyz7rShOW68tS0533NyjKXrLHTuh5O0qUO92XB3vwzu82UWlV31QvfuUYUstjlTilNro19exsfJ7EwoU4Tqyc3OWrBbWnsdle3rPZ32qZrE3nbYuTmjoUlDJqo1rO6s891t24vOQ9WU9GYOUneTw9Ft8XqRKvRtRTquV4uWx2d9VL93PYyw5A/9KwX/rUf/nEwZfN1emiIrqF+ACppAAAAAAAAAAAAAAAAAAAAAGDG+Cn5suxnNJQapYd7nRp+3UidLxvgp+bLsZosqf8Ay2GayfcKXrvCP69ZbinVmbqqd1FaqTWcpNLdt955hN6yUs1x3f0J2Hh09ZAx1oPjuf5mylu7hx717Y2k6QwMZxi21GcVqxk/syVrKnJ7rLZLZsTyV1p+ncLUoK1pQjLoyknvUtkl1Nm0UtI3Wq84ceHD3kKvi5xjJQqShn+5Jx7GW0paOJPj13DVaDq1+ZBSqXzcYR1um9orJZ9RPw1FYd6zlGVfZFRalGk/43JZSqcErqLzvdWWHF4+tPmTrVJrhKcnH2N2I8h2e6+b+yww2FvZrZ2Gy8mZXqOnKKcFnDLOLd7u72dfSangcRaT6cjd+TU4xvLJ392WzpK8tp0rw1/Xyy6FpP8AapST2tt539+82vkRRlDRuDjJWksPRTXTqR4FZoujCLk1lfZa7L7k94nh/Q0vgiYss7l1elp21lYAAqaQAAAAAAAAAAAAAAAAAAAABgxvgp+bLsZp2Dw/dMNh1ezVGlbhnCN/10G443wU/Nl2M1vRTisLh5Z3VCls6KaysSr5oZIiY5a1pJyoVFGTTUk2rbkuwqsViU21rcWuu2z3H3lFpJVK89Vtq9s7fuXWXRmVUXfrz/X64HVxU1G3zued3mI8mWjVs8893RmeqlX93Lhf3EepBpdeZ4dzREqu1Er/AGjFKRIlC+ZilTKrNdZhig8y10fpaVKyTt9q+W57v1YqHFcT3To3aV3nwXHLK+0z2Wa+brnJTEqdLWjrNP8Ai29OftLbkLJvReDbbbeGo5t3b73Hea/oHDzpUaNOK5qTcpPJ7dy6cza+Tqtg8Olku40vgiYsvm6fTT+nSxABU0AAAAAAAAAAAAAAAAAAAAADBjfBT82XYzT+76mAoPm54emudw7nG7XG117jcMb4Kfmy7GaPGkqmFw0ZbO4U7WV2u9x2dZZi9SnPOqcNS0lSu9ZZRSS2Wz35dPHLK3Ah0Y5rPf8AplnpFc5pZxTaV+hJKXW0l7SLToc3W9nudrcc3tOrSeHzl/VLAp2y6P6mCqjNOOZgrFs24eV80dze4wV48610+k9yTewt9EYOFtdx1uh5rofCxTM7atxVk0ZyZbcHVhU1WrysuG3nK9lY2DB6NovFRcILUp7Lp6za2ZdZXwxVR5Tm5R4XaWe52eaLzRGj2r1dZRi9itbLfs3e8zZJldimLTwv4yk5X2LNPe91rbi05PeJ4f0NL4IlNhMVeSjBcW2/y4vaXPJ7xPD+hpfBEyZHUwzuJWAAK1wAAAAAAAAAAAAAAAAAAAAAwY3wU/Nl2M55PFyWHw8b839ngmr7bwjtXQdDxvgp+bLsZy+uu9Yd/wCDT+CJbh9TF19pri3CBpCV5Xta+dtnSY4pakrbOPXs/wBTJiMz4qiVKyWbefVwt/r0tcTpVnh8/Ftzyr5MjVCZ3O7y/XEiyWdiUylXhlhR5vqJNGTjFZ7DxFZHvUstpCZNs1OpdX3bzatC46M6XctbYrdV91zXcTB9yhKTjzrKMUs7LY3biZ9CVFCT3OWVs010FF+WrDftluWjKNqjs+bay9hc8nvE8P6Gl8ESo0fiFdLo9hb8nvE8P6Gl8ETHfzdvDrXCwABBcAAAAAAAAAAAAAAAAAAAAAMGN8FPzZdjOXVH3mh6Gn8ETqON8FPzZdjOYNXo4f0NPh/BEsxTqWDxGN4kWUOBEqRJjyMbp3ySu9isjfWeHzW5iyvrXWwiSdiwqR3FfX2nu2iqVSkuklUoXyurb275deRV0ameZMhXezceTYmFrQpxcZTUrOmsrpPblZL+hGwd+7RvJRT2veunpf5nvDzSpSivtSsmuhZp+3sMXdI6m7dnle3C5XZKtmz4Cq+7RSnrbdqs7K2bX5G48nvE8P6Gl8ETmmga98QpN7rf1Ol8nvE8P6Gl8ETLl83c6C3dWVgACpuAAAAAAAAAAAAAAAAAAAAAGDG+Cn5suxnMrruGH9DT+CJ03G+Cn5suxnMFG9DD527zT+GJKvmy9XG6MVS3SR5J3svUSGlsPtOpKDvFXaNdJ4fOZq/qQsTBJbGmnaz7Sqr3uWeNnd3dk3uXs2eog18kTmSqLdbjPSeWW0xSWRik7ZohMrdbSKOJabv1E+nO8P0ijlUuy30Sm6d+Df5Ed7eZK9sbT+T8bYhdTOp8nvE8P6Gl8ETnXJ+j361srP8AVzovJ7xPD+hpfBEpyOt4ZbdJWAAKnTAAAAAAAAAAAAAAAAAAAAAGDG+Cn5suxnLdZ9xw9v7mndPZ9mPsZ1PG+Cn5suxnIsTOVOjh5O0oOjSzvmrwjkSrG5Zuq9DLKo+FjFOVzHTrqa5rT4X2nq7saKzp8/1FeXicW1ZZrqV/zIVVW27t28muWrm/6+pkPFtNtp3W32k9qqeSHOWeRirSyMrt/seakLt/nfptchMtEIvUbJoDDd635t/kUmGopsvtF1dSLXsRGJRy2jWpXGjIxhWsuDN95PeJ4f0NL4InOdG1r111M6Nye8Tw/oaXwRK8jp+Fei31WAAK3VAAAAAAAAAAAAAAAAAAAAAGHG+Cn5suxmmYPDweBw7cYtvD0tqTvzI5Zm543wU/Nl2M0nB1JrA4eyTaoUmk+GpHNdOzaSrPKGSImvLVMfgHTqPua5rs7NWtfgtx4oVbrgy1xWLlNKUs3tTK+rG7vsL3z/U62x1kyuq5Zeos5ELE07nu2PHKL0epvh+v9TFKo9i2bOtXuZKhiVO7yPJaIlKwlN7iao2PNDmxMdetkyvaiZmZWnJhOeKsrWUXf1/7HT+TvieH9DS+CJpXIfAShHXatrXbvtzWXusbryd8Tw/oaXwRI3d/w+nbj+qwABBvAAAAAAAAAAAAAAAAAAAAAGLEwbhJLa4tL1o5ZhuU+DVClSq11Rq06cIpTepnFaqldtJ7043unc6waTyo+i/A46q60u6Uass5SoySUn/E4yjKN+LSVz2J08tG4007Hco8LPNYqhe1vCw3dF+m1yA9NYbymj/Nh+ZsP1G4TyrFfhfLH1G4TyrFfhfLJ/Eliv0NbzuZa7LTeGa8Yo/zYfmYZaZw39/RfR3WOfRtNo+o3CeVYr8L5Y+o3CeVYr8L5Y+JKmPC6R/dLScRpag5eHpfzI/mIaSw/wDf0v5kfzN2+o3CeVYr8L5Y+o3CeVYr8L5Z53yn/Dqfulqf/GcPa3d6XrqR/M90cfhpSjF4mhHi5VYJL7yNp+o3CeVYr8L5Y+o3CeVYr8L5Y70f4ZT90p65W4KlBqniaVWUYSajTqRqN2V89VuyvvZvWhqLhhqMGrONKnFrg4xSa9xqPJr6KsDg6sa3fa1SLvF1pRcYtbHqQjFNrpvY3ojM7dClIrGoAAeJgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBUQEBIVFRUVFRYQFRUVFRAWFxcVFRcXFhUVFRcYHSggGBolGxUVITIhJSktLi4uFyA1ODMsNygtLisBCgoKDg0OGxAQGCslHyUwLS0rLS8vLS0tLS8tLS4wLS0tLS01LS0tLS0tLS8vLS0vLS8rNS0tLS8vLS0tLSstLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAgMEBwEFBgj/xABTEAABAgMEAwoGDA0DBAMAAAABAAIDBBEFEiExQVFhBgcTIjJxc4GRsVKhwdHS8BQjJCUzQlNydLKztBYXNDVigpKUosLU4fEVZKNDY4PTRFRV/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAECAwQFBv/EADARAAIBAgQDBgYCAwAAAAAAAAABAgMRBBIhMQVBsRMiMlFx0RQzYYGRwaHwQnLh/9oADAMBAAIRAxEAPwC8UIQgAQhcZuz3wpez3iCG8JGcaXQTQHOmAJLqEGlKYipFRUE5JbnZoVby+7WeiC9SFDByDpdziOctmvInvwunMavgbPc0XDnHsnHDmU+zkZ3i6S5lhIVdHdjOfKS/7rG/qlg7s5v5SX/dY39SjIxfF0vMsZCrc7tpv5WX/dY39SsHdzNfKy/7pG/qUZGP4un5lkoVafh5M6YsD91jf1KS7d/H+VgAaPckY4c/slGRj+KplmoVXu3w44/60D90j/1SXK75rxe4SE2IGtLy5vtIAGml+LhUitSDjgCaApxaJRrwk7Is1CqiT3wrSmePAlmiEcWuc26CNjnxLzxtDAFO/Ci1vAl+0+ZLKyedFkoVbDdPa/gS/a7zJD90ltV4olQNoefGCO5PKw7SJZiFWP4R25/tP2YnpLH4R25/tP2YnpIysO0RZ6FWLd0duVxEoRsEQeOp7kv8JrZ8CW/ad5kZWHaIstCrM7pra8CV7X+ZRJvd1bEvx4krDiMGLjCaXkDmEQOHPdKWVhnRa6Fze4zdfBtKHeYLj7t4trUFtaXmOoKgHA4Ag0qMQT0iRNMEIQgAQhCABCEIATEdQEnQK9i88R2mNa0d8TEwg2H+u4cJFd1uce1ehJrkO+ae5UDA/OE6f+//ACNVkEY8W2l9n1R0UKpoAKnUEmM5jDR8WG0+CXio5xoTUVxwgh/Bgw3TEeKBUsgt0N0knKmkuaMiuam7eYziwJeA1gy4WHDjxCNb3RKiuxgaB41OU7aGajhM6zN2OrZL3xeY9jhra4EdoTUSUcNIXIS1qh9+NAaIMxCbwjmMvcDGhA0cQ1xJa5tQS2tCKkXSF1MK0BFhNitwD2h1NVcx1Go6k4yTIVsO6T3uhiMwtzUZzkmNaLCboeCdQPrVRBHqaevrmncgotbjz3KPEclRK0B0GtOrPvUWI9IkkJiOW/3GSDIxjiI28wQITiDkb0d+B11MEYaQ1czEeu13ueTNdBLfeJxRkaKG79Be6iWnIkJokn3X3uNxmtJFDdxIOAdQkaR2HcwGOutDyC66A4jAF1BeIGgVqnQ1LDVIsEBqVRLDUoNQFhsBZupwNWbqVx2GrqxdT11YIRcBktSS1QrWtqFLXQ5r3XsRdDaUFK4kjWO1bBhDmhzTUEBwI0g4gpi0exAlZcSto2fFgi62PHmYUUDImJBvZaKuhtdztJ0q01XU4PbrM+nH7tHViqiW5qhsCEISJghCEACEIQA1M8h3zT3KgIX5fO9P/IxX/M8h3zT3Lz80+753p/5GKymYsX+n1RPtBznxI8FmL4kqwMAzcYboUYsaNJLYbqDXRcJ/qwDHsIaWvoa0F4Ft67ddoFXVNM6Bb3dNMFswHNJBDIZBBIIIaCCCMitROWnBikvmJSFEiHExGujQS4nEue2G4Mc4kmpugnSUPcupK9OKfkiHYB9six/+nBgRrx0Xo0N8CEznc+IMNTXHQujsaKTINaDiREA/beuTtG03PYITWshwmm82FDBDb1KX3Ekue+mF5xJ5lvLCj+5If6/13IjuQxPhXqRS2K6K0llwMIqcqhveTs1lbKVjVeo0xGSLPfx+pTRmnNz1ZvZh/tbP1+yo8tVBiOT8w8cGz9YZHX2HPQoL3JkBMRy7ve15Ez0Et94nVX0RysLewxZMdBL/AHieUZF1Hd+h0oalBqUGpwNTuWCA1KDU4GpQalcdhsNWbqdDVm6lcdiPFN0VUfljHs8nr5lMmIQcANuyp5tS1cOYcHGpayG3CpFKCp5R16clfCOhlnJyZqN2kv7Ux4za8jLQ9uPjaO1K3GzofDMA5sxbtYfMT/EFHt+0RGgxG0IaAXtPxiWULag5AkZZ456ForGnjBisijIYka2nleIqUo3Q4Ssywp8e3WZ9OP3aOrCVfz5BjWYQagzxIOsGVjkFWAsUtzoQ2BCEJEwQhCABCEIAamuQ75p7l57cffCd6f8AkYvQFpxrkCK+lbsN7qVpWjSaV0Lz3HPvhO9P/I1WQMeK/T6o1G6yL7f+pD+qFo3S73QzEAcWigc4Nq1pcSGgmumi2+6+Gb7YuhzQw7HNr3tpTmK0EO0XwwA1xABqR8UkGoJGR60PfUtpt9mspBmTQ0XQ2REpLM/W+u5c1GdedtJ8ZK6CAzg4TWaQMec1J8ZRHcjiPCkbW1pMQheD7wdcukUoQ5hcTUbQRTZmodlu455k/bdoNigBrq0u6CMr41aAQOYDE0qo1lNzd64f37ipIzSSWx2FrWIYMhLTfCl3DOc3g6YM5RBBr+hjzjUuce5dLbdswYtmysuwnhITiXihAAo8A1y+MFyj3JoU0k9BL3Kx96se1zHQS/3ieVaPcrM3p/g5joJf7xPJSLKO79Drg1OBqy1qca1RuXWEhqUGpYanA1K47DQasP1J2Ibo7gmANJPOpwV9SmrO3dQiLGZDaYrzQNH9g0bSaDnK4OfjOe8vOFSSAK3RXOg8vdkpW622OGfDgwSbrXFzjkHGlBTWACcdp0UJYeWmkLN9K0xq39N1OTTCjczzLRFFD0RDnHHgItBU3HV5gCT10C0cs/ADUa9WkLbOmHC9AfS4XvglwpUGpZU6sjQrTzEJ0GKWOzBpUZEGt1w5xipJisd7Y85e/wBLhnEtnnUP6Ilo/pD1CtlUlY8xdfZjhj7ucKfOhOZX+MlXaFiqeI6NLwoEIQoFoIQhAAhCEAQbd/JY/QxPqFefJo++E50/8jV6Dt78lj9DF+o5eeJ8++E50/8AI1WQMeJ3+37Q9MQw9pa4Ag5g4g6v8rnpnc4wnil4GqrXDqrj2rflybc9TauZoTlHZmigWK2GatBJ1u0c1MAsxJJ+zxrbucmHvRYbm3qzWMs8/GUtoDRQJbnJpzkwuDnJlzllzk04oEYeVaG9H8HMdBL/AHieVVuKtXef+DmOgl/vE8oSL6G7O3a1OtahrU61qg2XpGGtSqUFSltaoE/M43G6O/ypwjmdiNSWSNzEaMK1zJyGk82oLV7oIz+AcIZDSeKXONGtBzPOAsxptsEXnVLnVprdTVqA9dFeatmYixo1HOoxrQRDAwvuqcTpIbc/bOymqMTFciQ3t5EFpxwdGcAHmuiG08jPMiuwKbYstca6I6jWtvHGtDd0aSRXTpxz0PSNm8GS+I4C7iMRhSmLicuZaC2d0BmKy8sLrK3TFrQkHA3RqNM/EFycVxTvdnh9Wt5cl7v+6nYwfCXV79a6T2XN+xFhBlXtMeHFL64gvaauN4uF9oqa6BVR7SJJo8UiN4pr8Zufea8zjsUOLBhnDAHx15liFHLKMi8ZuQrXDmPxe5KjxGSVpq/X26GuvwiLd6bt67f8Omsh2NmA6LQA8Q84V8Ki7PAvWZQ1H+oDPPkjPbtV6LVnU+9HYwqnKm8slqgQhCBghCEACEIQBDtqGXS0ZrRUmFEaBhiSwgDFec7TNLRnOmP1Wr0facdsOBEiO5LIb3mmprST3LzZa7vfGc6c/VarIGTE7/b9ocLkhzkguTbnKwx2MvcmXOQ5yZc5BKxlzk25yw5ybJQAOcm3FBKQ4oAw4q2N5z4OY6CX+8T6qQlW3vM/BzHQS/3ifUJmihuywGhOtCQ1R5+fbBGt1KhtadZOgeZUTmoq7ZqpwlOWWKuyVHjNhtqeradS5u250QrtAL73EAGtKChc4gZ8pukcpQY1oxIsVrSauJFaYBrRiaasK/5XP2hMxIs/Fc8Oa1jWQ2Nd4PKLqA4Xi7sDa5KWBqOq5O2nIXEsOqOWN9bNv+LfsnxIpfEc57i4gUJNMhkABQAZ4DDPSSnYTQHlx5V7PVQBopto0JuUZxb7sLxN0aTor2V7Uq05lkJlXODcCGNrxnHU3Wdq5/FeIXfw9J+rXT3/AB5m/g/Dk18RWX+qfX2/PkandvAingGMeDeMQ8HDvlxLblb/AFE0zzK5qXmjD5Qrr8L+/risWhNRI7+EOFBcAFRxM6V5ySp8mWTDLj/hGit7S5vhbSNPbrXPS7OCTWnM7kVeTd9TE1LMjsvNIO0euHMte+XcBR2I16etOxpeJAdeacDpGRG0J1k0HjKh1ebzIV0tHdFmVN67m53PQ3F9mMGPu8uGWTWXjnsBV+BUZYMZrI1mOINPZz29boLmDxuCvMLtYd3po85i1aswQhCuM4IQhAAhCEAazdR+QzX0eN9m5ecraPvjOdMfqtXpqcaDDeCKgtcCDpFDgvMVuO98Zvpj9VqsgZMRv9v2hJckOckFyQ5ysMplzk05yHOTZcgDJcmyUEpBKAAlIJQSkEoGBKt3eX+DmOhl/vE+qgJVtbzsYMgzLjogS/3ifVdSSSuzTh4uUrI76dmhCbXNx5I8p2Bcbato0JxLnOO2rjoAA6vEps3HiRnkMFXHTk1rdp0DZmdpTkvZzIFYh48TwjhdGm6Pi6dvcuYqc8VK+0Udx1qXD4WetR8l/dF1INjy74RvRWHhImGbfa2aAccyaE01NGgqPMWYfZ0WM4gQzdOJpUhrW02DBSYs/dd+lmAM6aM+SNp6k3GdUX4xoK4N1k4Cukn1wVWJ4lCnT7LD39fb3I4bhdWtV+IxVtf8eift+SJaNsMhYhoLiCGA3RlppkGg0xJ5gVyM5BiRYpiRDVxNa5CmgDUNSzb8o72U+9rq01+JUhpGoYHrBT8oSOK81B5JOvwT5FhjFU43judyKU3aS05DcOHnXPI8/r3qMWFrqtNCDeaRoK2zmA119+1QorKJRnculT0H4VoseONRrjgQeSTpodGg9aizklpb68y0866486jn660ls3Egkta7DUcQerQr40LawZkddK6ktjsrLrWzK/8A6De4K/lR25aOIkWy6tFfZkQnV8A+nkKvFdbD/LVzhYz5zaBCEK4zAhCEACEIQA1NfBu+a7uXl23z74zfTH6rV6imuQ75p7l5a3Qn3xm+mP1WqyBkxG69H1QyXJDnJJKSSpmUC5IJWCUklMAJSSVglJJQMySkEoJSapEgJVqb0kC/Bjgmg4CXqdP5RO5bcFVJKtjehd7TMD/sy+WeExPedVyip91l1Ko6d5R3SOzYxoFGANaDnt0kk5nzdnLWvbrnxHQJfktNHRBmSNDeY6V0sw8taXGgDRWg0ahz+uC5Gy5djGRH5NaHPc7bidOdK9w0rFj5u8cPT5/i31/k38JhBKeLr622vrr77EmTghoqc+UT3kk96YmYrYsQXTeDKlvg3jgXE7BgOc61ykK1n3aRHPe0up8Y1Oek+JOW1aMWFSEwgEgONMSA4VDTUYOxGHjWejwyMZZqjuzTieMVJ92ksv15ku25j3QL5aaw2tFCLzaV5Qrpr2U60CECKYEHxLmIDCTxq1141r51upKKeS4gHIE4B3mPrzPFYO/ep/j2L+H8Ty2pV36P39zYw4nxXZ6Dr/vrCI8OoSw6vFeMdevn2ptxLcMx4wuRZ3PRppo5u1AS6njRdIAyOHKwPZzKfaspeFW56OfUoNnG80tplj5xz6e1b4yvC5zpU7VWnzOx3FuPD2aDpnIpr/4H+dX2qJ3JspMWZ9Mi/YPV7LqUXeCOFilaq0CEIVpnBCEIAEIQgBqa5DvmnuXlfdGffGa6Y/VavVEzyHfNPcvKu6U++M10p+qFZAy4jdej6oikpJKwSkkqwy2AlJJWCUklAzJKSSsVWCkMCsFFUklIkgJVsbz/AMDMdDL/AHidVSlWdvZuiexZkQ3XSYEAX/B90TuQ0nFRlK2pZCGa6vY6m2I/CkS7HfpRCMboGFDrOJw10Whtcui0lYPFhNPHOBL3A1ut2DMnzYyJePBl2FkMl7jynZlzsQGtptqO3TUiRZ8s5ovxKX3aBkxuho8qz06bUnUl4n/H0LK1ZKEaVPwR2+r5t/ryRHgSMKBDq4CjAX81BiuTtyQe+K6K2hvOFWE0cHXASADmNRC6bdRPCFDuDlmjqEAgeCXA8rHEN0kVOAx09m3jV8YVDjUg4uOOZJzKtM8W1qaA0A4wxGGOB5ls4cpxeMKgjv7kq2C1j9JJGGwHRXPqTcq6IMb55iAe9Mb1RljXwxRvHaMmnNvzXeQ1GxZdaUOnGNDljgeseUVUO1p57SGtceMNAaKUrXFoB1ZrXtJpQFuujmtIOyudVRVw9Op4kbMLjK9Dwy08uX99Dfkte2rTgciFr/Y4ZEDxgSTUaK0NU3ZkWhLdB4wGrX1+ZTYpDhTTmNtPKuTUpujNx5HrMNXjiaSqW1XVHUbmh7osz6ZE+werwVG7l3Vj2Z9MifYPV5LqYb5aODjvnMEIQrzICEIQAIQhADU1yHfNPcvKe6Y++E10p+qF6smeQ75p7l5S3Tn3wmulP1QrIGWvuvR9UQiUklYJWCVYZgJSUEpJKQ0jKSShJKRIySklFVhIaArv9xESkpHGNDAg8UfG90zdB48tqr8lWVvaNHARnHRAg065mb8yjIsjszcWRI3fbYlL3xW6GimQ209aLaRIoa0vdkNGs6AFHY8UvOyHjOgAaSo0eI8xAXNADRRrSa8Y51oaAU6zjkomdsgewTEJjRuW6rms2UxNOYAdQCZjaxzBbiGQA55PGpSvP5M+xaGbj3sG4N7/AOyY1qQ4zATU4nuRGc1jS55oAK4rESI2G0xHmjRmdugAaTsWinJ58flANYDUNGnUXnSfEgmotjLo7orzEfpGAGFAMgnIeY5/EElkNOwhikWMkwmUF4A3g68MzXKrewFPRxSkSHiMy3ZrCS15DTTSKDrwHkTQjCG+gPEdiBqNMeqtR1LHjKV0prl0OrwjE5JunLZ7eqOx3MD3RZn0yJ9g9XmqP3N/lFmfTIn2D1eCsw3y0PHfOYIQhXmQEIQgAQhCAGpnkO+ae5eUN0/5wmulPcF6vmeQ75p7l5O3T/nCZ6U9wU4mavv9n1RBKwSgrYz1kGFLw45iwyYl2kIH21rXNc4Oc04htG55cYa1NszqLZrCUklBKSgdjNVhCxVIkBWEJJKBgSrK3uPyeN0EHZ/8mc9fWirRWbvaxwyWj8W8eAg0GQ/KZzFx6woMnyZvrwaA95oByRQ1J2DPXhidOJwDDHucbxFK4NGoazrJ1aO0nDiSbzzedTmAGoDQNnNmlwQXHPnJwQZRmdGAYMfjHaduyi5y1Z+HANHG87wGnHZXwQpdv2xiYMti41Dog0HwW7Vw8RmJrnXGuddu1BdThfcfm5+JMOBfQNbyWjADzlOwsVDvJ+E5Iua8iXe9fKnIWPro0qLXsWys+Vv8Z2DBrwrz7Nn+EFctBrhrzmuFQ1mINMKkUD9VAKkDTzLWRItTzGg5scFJtmfEQ3WckZbTpNFDgNvA9RUKvgZpwitUjcsLcVFrGswHP2ZE7OAer7Xn7cKfdFmA/wD24v2Dl6BUKKtE1Yh3qAhCFaUAhCEACEIQA3M8h3zT3LyZun/OEz0vkC9ZzPId809y8l7qPzhM9L5ApxM1bxfZ9UQCumt2ZvWfLtLjxeCAA5B9rig3BfNXNoA/ito52mq5glbq0plzpKEw1u3mluDA3isc1wbSISSDUu4oxdjSoq2QhszRkrCCk1TIhVCwglA7ASklCwVEYKzN7dlZWP0EHL6TOYKslZW95FuSsd9K0gQaDW72TOUrs09STJf4smTc3cc5gFSMKjLLGhWqjWlhStTo1DmGtSZmKfiu42sDGpzdzkppkER4sOI8m8xpLxdAvG9SHdAzNQ+p1hBSkuY/KyrYcMxIgFaVOzTTn19i1Ew9sbB4zrd1jVj5FLtqfv8AtbcGt5VDUF2qukBalj8apEo+ZpJqGWnWEuBEBTs7iCRtKgS7S5wDcyUF61RuZWGXuAH+PXWptrR+DHAt8GhOqoxHOVJsqWDG58Y0xWino1+NFNa+2OHUDQU6ggpXel6EJ+akSb6HqTUTLmxTcN9CkXa8iytxjR7JswjIzcX7Byvxeftwz6zFm/S4v2Dl6BUYRyqxplU7R5gQhCkRBCEIAEIQgBuZ5DvmnuXkrdQffCZ6XyBetorLzSNYI7V5J3XQy20I14UvFr6c7RUdoIUolFVd5ej/AEa4lKdGcRQuJGGBJpxahuGwE05ykLBUyhGCVhCxVIaAlYQhIkCwsrCAMLvNxjvcsboIX3ma864MrrdzU2IcvFLq3RBhh1McPZEUk9V9vbtSZOKumbmThh9XuwaPWqam49ypZg5+A2AYDxYc9Ur2Y14DIRBZTFwyPMtdM1LyTlkPXUkZ0tdSO4VwTEYjLtp65JUaJQYdqgRoutBakEdpcKVAUqz5dsMVGJ1+Ra2FEqVsZd6CUr2sbuXNANmK5ibaIcV7RkHHPt8q38F/FK01tM9sveEMecYFBCnuRXuUd2GKA5Z50F5YW9+6sxZn0uL9g5eiF513sIRizdnBuIbMTEQnU1sA1J2VLR1heigkTQIQhBIEIQgAQhCABVVvkb1jp2L7KlHNa81LmHDE1JLTkanG6aYuJvaFaqECauebG71Nq6YThz8D/LFIWTvUWp8meyH6a9JIUsxX2S8+h5s/FNanyZ7GemsfimtP5M9kP016UQjMHZLz6Hmv8U1qfJnsh+mj8U1p/JnsZ6a9KISuHZLz6Hms70tp/JnsZ6aPxS2n8meyH6a9KITuHZLz6Hmo70tqfJnsh/8AsW2sHeqtO7Ehvuw2PaWnhODA0HDg3vObW5gZA6wb/Qlcap25nm4709rwXEQw4fpQ3wy09jwT1tCy7e0to53z+z6S9IISJ5Ueanb11sHMO/h9JNu3qLXObHfw+kvTKEBY8yjeotcZMd/B6SUN662Rk1/8HpL0whAWR5rG9rbgFKP/AOP0k3F3sbadymvPPwfpL0whAZUeYjvU2x8k7/j9JZhb0drvcGmEQDpLoIA2msSvYCvTiEBY4je33CCzId6K5r410s4vJhtcQXhpIBcXFramg5IAGZPboQgEgQhCBghCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEAf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBAQDxAQDw8PDw8PEBAPEA8PEA0PFRUWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tKy0rLS0tKy0tLS0rLS0tLTctLf/AABEIALcBEwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQMEBQYCBwj/xABJEAABAwIDAwcIBQgJBQAAAAABAAIDBBEFEiEGMUETIlFhcYGRByMyUnKhsdEUQnSTwRUkM1NUgrKzF0Nic5Ki0uHwFiWDwtP/xAAaAQADAQEBAQAAAAAAAAAAAAAAAQIEAwUG/8QAJxEAAgIBBAICAgIDAAAAAAAAAAECEQMSITFBBBMyUSJhgeEzQnH/2gAMAwEAAhEDEQA/AHrIsnLIssRpOLIypzKiyQxuyUtXdktkhjWVU09KJJXjoAsr4tUTDqbPNJ1AI4TKjyjNVNMWGxHemCFuKvCmvFisriFC6J1ju4FcrNS3K8hDSQbhOFq5IXRMiUTR4NXZxlO9TqkaLJU0xY4OHetXFKJGXHELrFmWcaIH04A2JTorGkb1m8bjkEhyNcR1KpNfIw63HbddlujhwaV5AJO/XROitygGxOnBVVDVB8ZLzbXQp17nAaG46l52j1zaZ6qksuNNEybF3AHKx10zSYtI4c5hHQq99U/df3J2le88VpbSRlUG3RcwTlx1CkRzBjrDiqqSubENTdyqmV0j3i7tC4adS5YcWqeuuC8+TTDQuzZuqLhMwHO/qCz1XiBa4gHdor7CdIg473LbPgww5JeXM63SfcrGngzuDRu/BRqSOwzcToFrMHwtojzu9MjTqRCIZJdEed7I2Bo4aK4wF/mnHpuqGrpSCb9N1fYIPNnsXbo4dkPB/wBM/wBtaStp+UYWXtcWWbwn9K721paifI29ro6KKylwIMy84nKbpjaGwc0nhdTmYncgZTqq/aXUddkMF+iiikzNkcrDZmwBJ/tfEKroIy2F+bfcqywP0R3/ABTQmaWyE2XIQI85sjKnMqLLzzacWS5V1ZLZAxvKlAXdkWSKOCEYJQyudPK2NxjabF4HNBtcruylbN43NFy8LS0xucXWc25aSLEg9ymVaXZUL1KhwhQ6+jbI0gjs6lNK4csms26TBV1I6Jxae49IUUhbXFqEStPrDcVjZoy0kHeF2hOxSiMFXOAVX1D3Knclp5SxwcOBWiLM04mv5EdCj12FxyNILQeuykNqAWNdwNh2KRG5d1wY3yZPCsEbmlidfLe4Cs24FGzcT4p/EZhDLG8DSQ5Cna+vaxhNteHapnsrfBePdpLkhOoYxv8Aelgw+J+mbwKrGGSV2vE+Cl1tI5hBbcaX0WRZu1HY3Swf6uW5YN2ZgOtiU/FstTjW27VN4JijvQfqeB6VZYlWlsLyAb2K2YpqatHn5ccscqZS1mERyBwaG6H0hvCcZEGhjQb2sDZOYVByNO4n0n3Jv0lScMpri9rlxsFcjnFllhtMZOcPRZaw6VfR179BYAblxhFNkDmnoUiKmHpXXWK2Ocm7IOIVBJAtZWuEXEZ04KvrW2cDvsrPDH3Y7sTfBK5IeE/pXe2r6vlytOiosKHnT7atsYdzbHcUui+xihaHjP0KsxWe7+xOUde2MGNoJ61WtrMz3c2+ttVLdjSoA68bz1lTMFHMb2/ioYbaJ9xbUqdg45jO0fFWiHyXjj1ITuiE7A89ARlTlkWXnmwZLUWTtkhagZxZGVdWXVlIxohQcPnaySXNpqFZOaqul9OUZc1yoyfBnXD80T3YnH0qdNtJTGmEPIgSNI84LdNyem53KnMI/Ve8JpkkVyCyxCwqTj/JucFKv0OSYqzrWFOJOkqZGO6eb2LcF0fqqsrqWDnSCMB9t6rFkinxyOcJNbdFE9iaIQ55TZcV6MYmGczSYHNmicw8Nyt6c6C+9Z3Z65zq8nj5RtrlpHEdC6RlTozZF2LidLygYRqWuuqfFmP5uYaXUirxMs5kbS4jidypqvE5i4NlsRwA4J5o64NIPHyaMikyxomu4BTJs53gqn+kyNsQ63UnI66QAFziVkUUo0+TZKTlLUuCfRwu5S4GoV19EkkaQ/dv7VE2Zn5RziR3laKSTK0u6AtHjY3CO/Zl8rKpy26KGZpJbH49QWi2fpMz725rNB1lVGHs5Rxcd7jYDqWpwaLIwjrK0R3MrdElnpSdijirJ0A0Uulbd7wehdOpWjWy6EspKiZ5J00VthIIjPYoVeA3daymYc7mFDYktxvCh50+2rbEaflOaVV4SPOH2lPxevEALnDRD4K7K91AIgdb3UCGls4nrUmpruUALeO4KF9Jtpx6FAx6oHMf2p/CvQZ2j4qLryLr6G6mYaOZH2tXREMs5pbOI7PghJUDnHu+CRMdGRsiy6RZYDWcZUEJyyCEgGrJQF1lRZIo4IVAWEvfZxbzuC0JCpIRzpPaXLM6xyO3jq8iGTTO9d/iqnGK18DmtZrmGpK0mVZbakedj7CsGJ6pUz0pqkQ3YvOfVXAxCZxs4ix3qtdiDWgFwaL9btfenGVg0cBoRcHNoR4L0l4c0+EYH5mKuWTnhN2TH08H6vg4fJH00eqf8Q+S1LDJGR5oM0Gz5IuALlzg0BaWSkc0kOFjxCwlDjjoSC1jSWuDxmJ3jsW5wnHn1wL5I2Mc1rfQzWNy7p9n3pSxNK2R7E3SHcNwVkshDjbS91df0fQSOzOc7qAsodACJdOpbqhfdo7F1xpONnGezo8k2lwMQVYiaC5uVpGlzx+ScqMJHJjmOFuOUrZY9i1Gyqa6QmR0QLDyeTR99QXOIBItuB0Sv2voHDKWydl6f/6Lk/Gtt/Z3Wekl9GX2ZpHBrrNda+8Aq8dSuNhlda+vNKtaXaajjYAyGYM4EMjIPTYhyfG1tL6k33bP9S6Y8bjFJnLJPVJsiUtJEHNs0gga3FlLom6vt6xUZ2P07pmu57W2sS5h/C6s8Lc1znlpBaTcEagjqXSjmR2XDn232UE8qbkk26LK5aPPP7AnXhvUgTRjps7t99CrvC2+bN+hcV7Gg3CfoPQNkh9nOFDzh9pSMbpeWBYdyawoec/eT+LVgiNyNE3wPspmQZHWvo0WTkNPdxed6XlcxzW3oc8jckmgaOKj9G7tUihHMi7WqLI+8Z14rgYi1rWi4BbZVYqL+obzj3fBIs+/HSTe58EJWh6WQwEtkoCLLEagsghCVIDiyLLqyWyQxshZqV9nuFt7t61DgqKJgLn39YqMrSxybOuBXkVD7BoOxZbawedZ7DvgtWWkggaG2nUsjtJG9r2iQ5nCN+o04LzvHX5nqZX+Ji5oyS1wAdlFrO1B7rFLFSuczkb3LnWbbTnEiwF+F7JipaXZRd1v7IJN+wLppfyYbez23AOhOW+7tsvpT5ommmfAXQyXD43ua8Eglrr84XGm+6C5RoScoDrXF9RbUcL20uuwUwHc63uwJuyXsi+L15+SvQPJ1rHL/wCL/wB/mueX4MqHyNnhzPOHuWirJzDS1EzfSipp5R2sjc4fBUmGDnlW+Pj/ALfXfYav+S9Ti+IT5PBsbr5RO5gJDGEN43AG7Xfqb+KkYdi7mObJKGuEZa5wfzWyta4HKe0aKHi0wFS8huZ2fjoBYC/wTP0WSq50bTk1uCQcrujpsu6dE1ZsKfaFtTOZImsjimJaYWG7Yy1txcWFnadG5xVw16wOz9JJDUt5QWLr7gbHmk7/APm9bUSIETQ9ajYmYkzN4NLHDqLswI/yg95WNEi1mw8gAnPXGP4vmlLgEaJo86/sTL43XT0MgzuN7Cy4qK6NvFRdDqyqr4jbrUnD7iM3USsxAO3BQZK2S1m6BS5opQZdUU7WOJcbWco+M1scml9LqkIeTxJKfjoXngp1t9FaUuTt1cALNCiy1T3cbdinRYW4px2F2ICKkw1RRRvbIW3DjboSNabC9laSU+UOHQV3BRhwFwhLcHIrRGULRCkHQhVoJ1FQEIC6sspoEsiyWyCEhnNl0iyVIDlyyc9UGS2J9JxWtduXn2PE8qLesVGaN4pI64W1kVGpp33WU20daTTeY3j3LQYS4louqHbC3KEnW0Lz7l5fjbZEerlVwZ59UzObuA7xfuT0cmZrTaxsb23Gx3hIlX1B80KEt0WKS6AO7r0HycP83N2xfBy87V3g2IPha4sJF+TB8HKMiuNFRdOz2DDpyHO5pPRZT8frz9ArbsIvR1IudwJjcB7yvHH7WVEWoeQLqW/a6pmikiMxc2SNzS3KNWka+5TGLiqByUt0NVuHxzXdfI82ubZgbcdCCCkjwNmXK2oLb77Qn/WnIpE+166tIlNodoaCOKxDnSPaMudwtpe9gLlThKoTZF1nTBk0SK/2TfK4zBnojkie05/kFlBIq2qxuohm5Knc4GVkfNZqXOzPAUy4BHrUcb3PILgO9P8A0Bn1njxXjOIYliELrT8vG62bXMNOm40VfJjE53ySEe25cqLs91EVO30pGd5CYq66jYwkzRj94Lwd9c47yT2klNcvdFCPaqTaSga45p2DvCl/9c4a0fpgewOPwC8JdMfE+5c8sdT0bkK0Do9tHlHw9t9ZDrwjd8lCqvKdS3GSKV1uoD4lePGUhvWUj5SBonb+w/H6PSKryih2bJAdTpchR2eUmVos2Bne7/ZefOlIAXLZNLpKPdj1r6PQz5S6r9TH4lC85Mp6UJ0/sWpfR72F0EWSgLMaBbIslslskBzZKAlsug1IZw4aLKVrKPLIZ83LAuyWLvwWucND2LAY4Oc4+0lON42dMLrIh/ZycubrwJA7FA2t1kd/cv8AgntmHczvUfal15D/AHL/AILysf8AmPYyfAwgCVdNCXKvpj5gQOQlsgBAAVsdidl/p8cx5Qx8m+IaC97tcVkLLeeTnHW0kc7XfXfEfBpCmbSVscU26Rb/ANFDJBZ1Q+3UG/JGIeSmCmpp6htRM51PBNMGnLZxYwusdNxstFDtvDxLfGybxvbSnmo6qJpBdLTTxixB1cxzR8UlJMehx6PN2qQ1c5F2GLqScS1LWjeCbgWzAWv0pwP4g3HVxTOFuEb5Gyszhzrgltxa97p+W1zbdfRSuSmthC9d7PQkYhHUuYTDFGAX2u0SXcQOo2KZKehxZ8cE1OGjJI9kjn/WFgRYeCnI6jYQjqlRpMW8osZqmU/IseJOaXO+qs/t3WNEVgxjbnSwsvPZXPlqhkuXZxltwsVodpXSTyQQfXNh/uuW+1lut0iVsRsqcQeS9xjhYdXDe49AWxrPJdTA+bqXtHEOyu/BWmzUbKWGOFg3NGY8SeKnvfmeBf0ijUg0Hne0exjKWLlI5JJSOhtxbuCxPDvX0zA+PLlIba242VTiWG4c7V9PE49JY1URR8+kXsOhcyb17NiMNMGOjjgjY0tI0AC8dnAEjm+q5w8CmlYnsMylIdwSSnXvSyFAhouQuUKhH0QEqlxYbK76tvaNlLjwR31nAdgusyhJ9GjUiqCVX0eDxjeXO77KTHQRjcwd4uq9LF7EZprSdwJ7An2Ush3Md4LStiA3ABdZVSwr7F7TOjDZSPRt2lZ+t2GmmveVjL33AuK9CsgNVeqNUCySTtGIwbYEU7cpmLuvKAmNpdiYORqJy+Qvip5nNFwGktYSL+C9BDFXbSM/M6v7LP8Ay3KF42JO9O50fk5Wq1HzCGrrKnA1LlWkzDWRKGJ4NQGoENBq9V8j2DQT09U6aJkpE0bW52h2UBl9L9q8wyr2TyJN/Nan7S3+W1JrYaZqjsnQHfSQ/wCBqrNo9kqCOiqnx0sLHsppnsc1oBa8MJBHethZV+0jL0VUPWpph4sIU0h2zxY06UQq3NMufo66kFVyKbMSt3U6bNOgZUOiXA2Yr6sSSUcYkYzLG9uZrTmsXaXI4OCt3Uy3nkxjtDU/aR/Kj+aiaTW402nseX4LsvJSAunpqiOXW7jE54H7zbhMYNRufVOqHXyMJa3MLEnpsV9EWTE9FE/042O7Wgrk4XwXGVPc88jFw13EfBcslu8nSw3dS2tRgFO4WDSz2Db3Knk2Qc2/JShwOtpBY+I+Sj1tHTWmUL6p4O/vulMzn6EgKXUYBUt3suOlvOCr3Hk7h4AISSfYNrobq6djWOe4lxDT1ALxWd95ZCNxe63ivVNoa3zEhvoGnXcF5LEdSenVdlwcJHbt4SvK54okKABu5CVu5CLA+tglShi6DFYHN10O/wAF2AlugDkMShi6ui6QCWSJb9S5ynqQAXVftA780qvs0/8AA5THxnpPdoq3HW/mtT9nm/gKBnzkGpQxOhqXKrJG+TRkTlkoCAGsq9f8jTstLUfaB/LavJcq9S8lNxTT2/Xt/gakwPSmyhRsademn64nj3KMx5XOJOPIS+wQpGYswpDCpuVJkXQggGBcmBWBYkMaAK0062OwkeWCa3GpJP3UQWeMa1GxzbQy/aHfyokpcDRfIslCVQUcWS2SpUAc2UWrw+KX9JGx/WWi471LCCgDBbY+TsVsZbT1Dqc+q5vKRu6jaxC8ex3yfYlQ5jJTmWIf11NeZlusDnN7xbrX06QuUCPj1p1KSRfTW02wGH193SwiKY/18Fo5L9LtLP8A3gV5JtT5KK+lvJT2roRc+aGWdo64vrfuk9iVAYJCR7rEg80gkEO0LSN4IO4oSoZ9fC6UApUqsBMqXKlSpAJlS5UqVAHOVGVdpUAMlqqdomEUtQeHITfwFXiHtBBBAIIsQQCCOgoA+XQEL6S/IVH+y033MXyR+QqT9lpvuIvkq1Co+bUBfSX5DpP2Wm+4i+S6GB0n7LTfcRfJGoKPmy4XrPkjgzUsx6Zx7mNW6/IlJ+y033EXyUunp2RtyxsbG31WNa1vgEmwohuo+hRa6Bxjez1mkA8L8FdIslYzz0eBGhGlwehKt8+nY70mMd2taVx9Ci/VR/ds+SrUTpMJZJZbz6FD+qi+7Z8kn0KH9VF92z5I1BpMEVrtnaR0cPOGVz3mQtO9twAAeuzQrBlJE03bHG0ji1jQR3gJ5JuxpCWQlSJDESoQgBEFCCgBEiVIgBEiUpEAQp8KppHF8lPA97t7nwxuc7tJFyhTEIAQJUiVACpUiVACpQuUqAOkoGi5S3QAqEiVAAlQhAAlSJUACEIQAIQhAAhCEACEJEAKkQkQAqRCEACEKJiptTz23iGW3VzCkVFW0iUgqi2fwyM0jLmQmohgfITLISXWDuab83U8E9s2LMmbckMqpmtzEuIaLAC5VxjcHL6Jzfhl9a3W+/8Az9f2WyRd24/8CTMQBbrUgcJE5vt03PR0IaTfh/lRYDaRKkQBwughCYhQlQhIYqLoQgBUoQhACpUIQAqEIQAJUIQAIQhAAhCEACRKhACIQhAAkQhAAkQhAAm6mIPY9huA9jmEjeA4EG3ikQkNOtyow3CpIuWg5eYw5IOQdnGeJovmaOA3DhuKscOohA1zWuc/M90hL7Elxtfd2JEKk2o6egyv2ZPZLkl3SZuxCEhBm/Fcg+5CEACRCEAf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEBUSEhIVFRUXFxUYFRUVFRUVFRUVFRUWFhUWFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAEDBAYCBwj/xABJEAABAwIEAwUEBAsGBQUBAAABAAIDBBEFEiExBkFRE2FxgZEiobHBBxQy0SMkQmJyc4KissLwM1JTksPhFTRDY6Mlg5Oz0hb/xAAaAQACAwEBAAAAAAAAAAAAAAADBAABAgUG/8QAKBEAAgIBBAIBBAMBAQAAAAAAAAECEQMEEiExE0EiMlFhkXGBsTMj/9oADAMBAAIRAxEAPwA2K6z8jjpyKsOLX6EILjTCRcaWT4PiIkbY7hPJXwAssVWGb5HaoU3EHwvyyDQ8+S0MZJKjxSgEsZa4C9tOqy7iQhkPs5mqjJTxTaO0KGcN4sWvdTTaOafZJ5jkQr+JQljs7dihygmXvcQbivDTmi7dQs1/wnK+5BHdZelU8+aPdUjA0mzhcLChJcJmnKDatGNqKlkTAXXNzbQJ6SZku23NHsV4ea8HLt05f7IPh2DubJ2cbCXuO39ckGUaXPYVNt8dHVRGyMX0AWdqKwvdflyXoc30fzStHbTti55WtLz+0bgel1A36M2C2Wqv1vHz8nIaVBb/AEYmmjLitRhFFsj9NwG5u0zD4scPmiUPDUzdnQnzeP5SsyjI3GUSjDHYKw1yuf8AAqnpB/8AJIP9Jc/8Eqv7sXlK/wCcauMZLskpRfRUcU8O6svwqpA/smnubI2/7waPeoYGEuLSC1wtma4WcAdj3g2OouNFWThcmsfL4NFh7/ZUNbThx1T0bbBWrLg5uXwdSHx5IIaYBXIYguQVKxyBRmcmw5ROs1TvmAQMV+UIFjXEgaCL3PQfNdLHrWoqEFbEHpm3cuEGsc4hbG02IXk3FHELpCST4BV8fx8uJufJY6pqS43KawaaTl5Mrt/5/BjJkjFbYHc0xcbqMFRhy6uuhQqSJiuQU5KuihlUndqrLihlXJqqkuCHMhXBalE+5V8QiyXk9pdA6Ae2EdvZqEPZZytun0WMicqIVg67yisWgQ+nhubq0+40WZtN0Wj2WrizNKx4ldBNfkTZbIO5IRi2G5tV2hQNxz2a0t3PuCiq62Ngu51r7dSe4INQ1jmtIOttB5Kq1rZndqdXNJDenerXyNN8FTi5jZGdrG1zZGah1rX6gohw1iTaqmFzraxUsLhIC0+BCAcNxfVax8RHsO1YPiFTjtf4Mp32afD2FhLDtyUp+1ZWtCb2UFS38pUZaJmiyJ8PRsLnPyi4HmNvjf8AdQtklwiXD7vbmFtmRnv1dJ9yxl+kLhfyPPfpE46mFQ6CmkyBmj3N3Lt7A8gB0/2FDgvj6q+sNhnk7RjzlBdYuaTtZ25HW/jy1Bcc4JNTVkmZrsr3F8b7Egh2o16jmo+EcMlmqmFrSMpaS7LYNAIuTy2v5lK1wM+z6GpZw4B3LW/iBsrJfYA3BubaeBPyWA4u4zbh7Gxtj7SV1zYnK1g0tfmTsbd46i4rhv6UhLM2OphDMxs2RjiQCf7wOw7wVbdFJHrcbtF0oaWQGNtv7z7/ALqmUjyiMSp4i0Bva2BLAT4s/wCo0noQL+IaeSuKpip/ASfoP/hKkkmqZIumU6Gpa+Nj27Oa1w8HAEe4obimJyZzHCWtDf7SUjMQ465GN2vYglx0FxodbQ4PVAUsJ5dlGfLIEAx/EeypO01u4Of+0/NIG91z7IPK65ui0sZzk5rhHR1WdxgtvbCQqpL2+tS373Qgn9nJ8lM19TyqJT4inP8Aprw51bMXF/aPJ3JDiLeQ2C33BuOPkY0P13BPUi9j521XSjhwydbF+kc6WTIudz/ZspHVDhYynzYz+WyHzYQX6GRo/YeD/wDYjOHVEGU9qHX5EE9/Lqq9G4vLW8yDa+4sCfgESOmwptKNGXmyVy7M3U8Ftdr2hv5ofJwJJymZ5h33LdXXJRlhigbyNnn03BFQBdro3dwcQf3gAs/VU743FsjS1w3BFl6/dBOMaRr6Z7y0FzWu15jK0vFvNtvBzuqqWJVaIpnmmZPmUGZPmQTZKToh1W1XC9VJnLMjUSkLgq3HVaJMiupm0d0BuL7CqD9F3D4g/VXqvCrt0Co0QdGbjZaqmnDmhCk+Qmy0Z2ko3N3CiqPtLRVbWoTKwEoFfKyvEepSCzrqyGZteVlXDrkt5qdriGEc135dHNXYLxCANie7+60n3ErI8PVpjcGO2OvmdVruIJPxYjm9wb5X19wWercLu0ObuNVIcFSfNFzFoyxwljNrfa7wq2OTnJHUxgFzdfEcwuqCrErDE/7WoN1DhzT2UkD923t3grb5IHaPGc8TXuZYEXJCI0xa8XBzBZnhSUiNzD+S4+iJGKzs0ZynpyKxKN9FOXPIaZSixtor+AMs+f8AQh/im+5CIMSNrPbbvCL8OyBzpyDf2YR75j80LInXIbFVmd4043pqaTsXRds6wzN9nKOViSDr5dUuEuMaKpdkZH2L98hAsbf3SPuXjONOk+sydtfOHuD773Bt8ld4VH4/ThmY3kjvbQ6ubm66DXyul3zyHvkv/SbHIMTm7S5BymMnYxkXbbu3HkVnqJmaRoaNcwsOuu3nt5r3ziHCqOalMlW0FkQeQ/UPa0a6Ean9HW+miz3AOHYTLI6SkEhkjtftR7Tc18rmj7PI67juRNpncb/AmkMAPIAH9INGZFgooIQ2NgAtfMfU219FLZYSrguxiqeKn8DJ+rf/AAlXCh+Nm1PIfzHe8WVvotdnmFJjYbBCy+0cbfRjQjs+GtmpGxP/AMGMX6HKNfigFdwcOxbMHEWYHuAPRuYhHMfxQU1O93MNYGjqdh7yPW/JXp4qKkyZZOTSPO8Q4MnY6ws4dQDf0CL4fQ/VITI7QtDiL9Q0uJt1sDYczYLPycV1WbMX+WoHkjc0jq2lLB9qwc387TUeIuPGy1CudqMy/JnH8U1Rdm7QjuF7L0X6O8fM8jO0+0M4v3mN4F/NeUyUMrTlLDv5f7L0n6N8JewhzhYAZyD3A6+rreC1jUrMTao2Q2TFJuyYpkEckoVxS+1JL3skH/if9yKlAeM32o5PL3kMP8SzLplx7PL0xK6IXJCVDHLioHlTlqryhU+i12TQFXYnoZDJqrrHpKa5HMb4LokCliqCNiqbSpGlBaDJlvtyeafOq+dQvqtVFFsjkkewzaajdTteMo1toVVK6mZ7O67sjioG8USaQN6lzvQW+amgHsi/RUuJNZYR0afef9ldidoB3K49A5fUZ7HKEsd20e4NyBzXArA8CVu9rPCO1e1jsstURdhLmH9m/QjpdaREF8BYC95Gx1RmwAWZwGQx1JZycLtWqvfQqMjO4pG80e4SYLzW/wC3/qLOvhuFoeCRpMO9nwch5vpC4uwZxV9HdNVydqQ5kh3cy3tfpNO57xZR8OfR9BSPzszOfa2d2pAO+UDQX66lbwhNZLp0HasDYhhbJoXwPbdj2lpGo0PQ9UJ4N4JgoS/s3SOL7ZnPILsrb2a2wAG51WvTWUbKoUjrnaw0AHQDYJk6ZZLEUN4g/wCWk8PiQESQniYn6rJbf2fe9oUfRa7MnXyuFHIw84XN9WWQ3jXCXTxZW/aBu2+xI5K7WVTHQlodcksbb9J7W/NGHsBGqZhFNNMBufZ4Y7DKgOMfZm501t1vv4rf8L4S6JgzHYaeYaNO6zQta6kHX1sUxpz19y3DFGLuypTcjz04/OcS+rmJpZ2mTKWXfk/xM3S3tdLaL0rCYcsUsh0BbkZ3uJBNvDKP8yqfVNb6emvxVm5sAToNhyHktJNeyrv0MAmK6TKyiMoBxkR9VeHc26fpdpFb5nyWhIWc42jJhaByeCfAh33IeTiLNQ7POezTiFXzB3LpsCUsPQPECjnpNEaECZ0CqyzJyxkFPHNZHKqhuhstAVhxs1GVHLahd/Wk0WESu+y0lI4XIDZwIQ/GgvkZy6oJ0CMU/C872hx0vyU/C2C5qhlxoDc+S9MmIYcobdU/i6Ra+Stjghw6KWpd7PkFA8EG4VxxFj0IXUkc5Gexw3qGfoD4lWDe/hZVMc0niP5vwcrsuuvcrT4By7Y++6zHEEJaCPyT7lpGOVLFIM7CCtEM/hdRmMb76tNlrDMV5/hshjqDEdr6LZvmsVIu0WwjDLyutTwWNJv0mfwlYiOQ3W34Kjc1suYWJc30yCyFnaSSCYU+zSJk6ZLDAySRNlG5/erKO0kgbpKEGKB8ZH8Rm/RH8bUdKBcYi9HINr5R6uCjRDF1f5Hsj+2g1/8AdZdaILPzaviHWVnuu7+VaEJ2IrF8DJinKRWi7OUy6TXUIMkknVEGsqNdTl5ItezWH0Lx81fCpuqLSu1tYNHxPzWMnRqPYIdh8TtHCxQytwIt1bqFo5sj+dipqUBuhNx8EpNL0Fi/uYYx23C4c1bqtwqKTYWKzFdh5Y6xQZTUew8cbl0ByxX8FwgTP1Gg96QpkWwarbFuhSzKuAscDvkPNpYIsrbC6HY7hcLiDcBEMPrKaaSzyL96Oz8NU8g1WYp9o3OUVwzN8O0EDDoRco9LhwJuDp3KD/8AkYmn8G8g+K6GEzt0D7hbcLBKddAmd1rg7K4GAga2uN1UDgW6q1EfZAPL4LpzEEZ/iKEh0Tv0hf0KsRSXa1PxMfwbD0f8QVUg+yO5XHoHL6ieQ5TdRSyXapdDohU8xa63JaMmfx+ns9sg3adfC60Ec2bJbUkBU8SgzggC99vFazgrhoxMD5Td1vJvcPvQM2dYlftjGnwyyuvS7LuE4UGgPeNfgtHw4+5nI/vtHpG370NxaqDW9FPwS+8cx6y/6ca5uKUp5N0uzq5oRhh2xXs0ZSSSTggRzbKEKyQuOyWkzI8ey6Sa2yShYxQPi/8A5b9pvzPyRwrOcbvtTj9Y0fuuUXZT6MnY9vAP+473QTH42WiWXw6TNUxAnbOf/G4fzLUJ5IVT4GTLqy5srLKzqjXQLmnfrax13P3qJ7bEhSUx1UKLSeyQTqixkErf7WQd7bf5Go4s/VMJkeerjb9n2fksSI+is6D84qGZjhoH6qwYzdQ3AddyztRi2d4NWy2uSDYopi7A8B6zzaQyC7HEI/HARTi5uktRBODY5pptTSA74wFSnNkWdT3UMtFouYjqsBSPINxoRsvS+EcSMsAJOo0K87qqYrV/R0TlcO9N4XzQrnXFknFUdX2zfqz8t977LT4JVSiECYDtBo4jY25rjEsPdIBkOVw2KtYbhsjYwHuzOuSSmGhUx9NJcfJXSbsuEOlj/KburFK/M0ju96ckARVxln4B3cQ70IVKkN2myJTszRvZ1afggOHTaAqIxPsskkFV6xgc09QrUzSdlFTRl7wwbn+rq3JJWzKi5Ol2T8K0DpH53j2Wmw73f7LdSNyx29O5Q4VStjaABYAKSul9knkuJmyPJLd+j0GHEsUFH9mP4glkfK2IE66k9y1HADCIJATciZwv4MjWUNUGzyTO+zExx9AStF9GFSZKJzzqXTPJ8crLouBdv7ANTLpGxSSSTaEx0kkgrKEkkkrKGKy3H5tTM/XR+8PWpKyn0hn8Wj/XM+Dlce1/JUumZPBgDVtt/hyn0dEP5lqlmeHmfjBPSJw/zPZ/+Vp097YqukcpJ0yss5LR0TNaBsF0koQZJPZJUQYlCMGqmySywvF2iR9uou4m4Pmir1kOEpy6sla3W5LiegICQ197FX3HtCk5tP7BjGIH0xv9qM7O6dzuhWTxLFiTYDU6L1B0bXsMbxmBFiDzXmWMYA+CraNTG43Y49Bu13ePeh6TVeT4T7/0rV6TxPdHr/AnhVQ1gAcj9RIOyFuazs0bX6HQ7K/Xyhgay+wWtT/zf5B6ZXkLbQLKOePRU2VSsRyX3XKo61gTEXEArSfRlGTG9x5uKGYnCC0rWcB0XZ0w79fVM4OxbUdGkiCs51WBXDqgBNCh5+JC0gHbr96sRD2rhQcspXDS5pA5fBOsAXDI64uLjqs0x1nOZ0cR79EXrJXNeADoSEJxBtp3fnAO9Rb5LESpl+HZFsDovaL7b6DwQ2gg7QgDbS62cEQYwacknrc3HjX9j2gwW/I/6GlkIGiCYpiIy2G6LSE681msTGuy5qZ1GrMnxjVFlGQN5XhpP5rfaPwA81ufoZP/AKY39bL8Qsri9D9YgDLhuR19ehFit59HOGfV6Psc2bLI/wBrrmax/wDMnMMlVexDPCW7c+jVhdLhOEdMXaOgnTJwiIwx0ydMtFDFZD6RZAKeO+3atPuK1zl559MjiKD2d8wtbfdo+atOnZTVqilwrMHSyEa2Ywern/ctKsB9ExcYp3OvfOxuvc0n5rfhOwe5WLNU6EkU6S0UcWSXVk1lRBkk6YqFkUp0WP4Ac0TTdTY37hp9y1WIPtG89GuPo0rzfCqvspQ8HmbjqDyS2pxb1x6GNPmWKVvpnrzRfXmua6kZNGWO8QejuRCG4RiGexGx1B6oiA7Nfl0XDyLa9y7O3W5U+jJQUdpAx32mnXyQHHa8GYi+y23FUIbH9YaLOAyu8Dtfz+K8okic55c7mU/v82NNHKUfDkaYYhr1dhr+9CGUoy96ZsLuqD4xhZUaD6znIaOZAXpmGubHC1vQBeXYBE1r8zz4LUy4uLbo+LFSF8uXczSVNeAN0HlxG50Kz0mIOkdYbIxSUXsC+6K4A1Iq1cWmYbqvHL12U7J9LKvNHzCZ/DBM4r48wFhc/cqOKRHPEQNSC23eLEfEope7B3FTUMYNnHWxOUnwsT8UDJk8asJjxeSW0I4JQ5Ggcxv3nmislQwEa9N/geiq0sluYUj2g7jMDuFxdzbcn2ztJKKUV0KssASP6CB1pGnerdfI5kbhfM2xynmPzT96zFTiYLGOHI6rKNWSzgNkeOVmn4rbcD/8sf1j7eFmgfBeYOrs73d4HuuvReAJvxd7ebZD6OaxwPvI8imsUXYvndw/s1d04VKbEI2fae0d17n0Cpy8QR/kgu5f10RXNIWWKUukGwV0EEGM6Xy/vXVqgxNkhsLg9CiQyJujE8Uoq2EUkgkmRc5cvPfpXmyx0wH5Urh+6vQnLzj6WWZvqg6SSOPgGgfNZmviExupIg4Nb7MxP+I0ejAfmtIAs/waLxSHrMbeAjjH3rQp7DGoJCmZ3kbFZJJMSiUDsRTJiVw99lTLXJ0SuS5U5pX7geXNRUeINkvY6jQg6EHvCXWeMnSYeWCUV8kPjZ/F5f1b/e0hecxYUb816DjU4bA8nawv4FwB+KgpaSOQdpHa3MdPDuQcuZKaT9mo4W4OS9C4MiLGZTyJ9Cb/ADWsdyKC07QwhEO3FrXXK1H1yR2NM7xxZbmp2yxvjOzgQfMb+I3Xl1dQ5CWkagkHxC9MpZgDvos/xbRASZh+UPeND8lrRz5cRbW4+NxhGdFJZQvFpSFZITjVMUi7RzmKcTm+65ISyLKdF0HaJwa3MOSYcZNbdpbshUMpAtyTfU2HVMKakBcWjSTCw071FDNbddPkNlASNwjmS7DYgt66onTtAFgLAKhg8N/aPM6eH9X9ESnflC5GrybpUukdXSY9sL+431kNO9vHZTRVLXbG3htdZ6se8nQe9S0VBKBe5aT0ulUuBpPkMVT7gg7d/NYGtoJGvfHG0uB1YeQ12J2FlrTTvOji4+dvgrdNQgcrK1wSRjsO4ZkuHSOt3N+8rQspcujbi9vMi+h9feUcjo+aUtNp/XuWrlIxcYgBsJDv60PNvwKm7J2jm6EWI8Falhsb6G418RsR7/cmbPlbbustKDKc0EYQLX2uAfPmnoyO1LgRpbms1iWKshZcuLjrlZ1P9dVk4sVqHvL2xsDjzdmcRbSw1sPIJzFFKSk0LZ5Nw2pnvdNLdo1Uy8nwbDquVueSUtHJrPZ9TutJFhTmgfhZNOkj/vRnlX2F4aab+xsZnhoLnEADck2A8SV5rxJXsqZ7tN2MGVnU63c+3Qm3kB1WhfTNtc3cRsXkuPqTos3jgHLcEW9UGeVt1XAwtKkrb5LnC4AZI3pJfycxlj6h3ojVllaOodG/M3wIOxHQozHjDT/0336NAd8/kulizQ2K3VHLnjlu4QQK4JQqfiCFps/OzvdHIB/mtb3rmPHqd32Z4z+0EaOSEumYlCUe0FSU8ABdYqnFXRu2kYfB7T81ZhAdfXlpbqEPUv8A8nQbSV5VZxWuy3BcGjqVj6+QCR0kT2l4tax0eObSFosWhzHM7VZ+opA69h7tlwd+2Vo7c4KSplPHMbElFJbRxygj9ofcjPBTSyna8n7W/hyWIxrDnh4GzTck3FjbQet7+SOcPYsQBFyGl7o2a8kVMBp0oScWbmra212+nQqWkh9m51KphwI30FrojA05beqTlJyfI5GEYRqJw9pO2ik4gpM0Id0IProfiE8e9kUytdEWE30sfNTHLbNMDnjui0eO4tFlmXYV7iCjcJfA6qplXUyHJxkdl0GpWXQCGEEGpWXYSsoXQcqGbKjJMRp1IA9UySecqQvFW6NJhrbC3RXZqa4SSXFq+zt9dEdPTgHYIk2PRJJbjFGZNkPYC91IwAJJKKCsHKTHlnAQ+qrkkk7hxxYpkm0AKzG4x9p3gOZ8Ahz8TfIPwbS0dTqfTZOkiRgnJquim2oplf6hc3dqTbU6ohh1AM1raBJJNxxrbYDe3KjVRvsyw00Vd+Khu5t4pJJSkOqTKkmNZh7N/khchJNzr8kkkNuwcpyY4R/h9wyONtb29wTJLNWXidSKePxDKe9ef12DNJLgLHqEkkDbT4HJO1yEcEmMADZYxLERzAL2eu47t1s8HpoLiaAN1FjlAGnMe73JJImOTfxYNxS5CM0ZJsPLw8VSmw7z8tB4Dkkkl5RQRMqVWGslaWSAkHobEd4WNxLA5aV9/tMP2Xge49CmSWcUmpKPplZFxZoOHMXzAMcdzc/ctXqRYmwOptv6pkleWKUgmOTcRQM15lF8PsNLb+CSSWf1Ek+DOcW0QDg62+h8R/XuWPlbqkkujjd40c2arIzmyVk6SsggnSSUJR//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUQEhIWFRUXFRUXFRgXFxcVGBgXGBcWFhcZFxgaHiggGBolGxUXITEhJSktLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGi0lICYtLTctLS0tLS0tKy0uLS8tLSsrLS02Ly0tLS0tLS0tLi0tLi0tLS0tLS0tLS0tLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAABAAIEBQYDBwj/xABPEAABAwIDAwcHCAUKBAcAAAABAAIRAyEEEjEFQVEGEyJhcYGRBxQyUqGxwRVCU3KS0dLwI1ST4fEXM0Nic4KDoqPTFmPC8iQlNLLD4uP/xAAaAQACAwEBAAAAAAAAAAAAAAAAAQIDBAUG/8QAMhEAAgECAwYFAgYDAQAAAAAAAAECAxEEEiEUMTJBUXETIlJhoYGxM5HB4fDxI0LRBf/aAAwDAQACEQMRAD8A8nCcgEQpFY4IhBOCYBTggEUAFFAIoEFEIIoASKCUoAKKEpIAKSSSAEkkkgBJJJIASSSCAEgiggAJFJJAAKanFBADSmlPKaUDGppTigUgGFNTymlADYSRSQMcE4IBOCBBTgmq42LyYxeLg0MO9zST0zDWW16ToB7pTAqgnLYM8meNmHOoN/xHEnsDWElTj5JcbuqUCPrVNOPoKOZdR2ZgU17wIneYHWVv6nkoxgMCrQPe8ezIqHafI2thMXhaeJ5twqc6Whri4HI1pMggR6QUotSaSE9FdlazZVc6Ux+1o/jRdsmuNaf+ekfc5bkbKo5f5vpR/VieOiWJ2XRJHN0yBAnNlPS3xA0WrZX1M+0RMJ8m1voz9pn4kDs6t9EftM/Etv8AJLPUb4BQNt7GqmnGGDGvzCS4N9G8xIImY9qTwzSvcFiIt2Mv5hW+iP2mfiQOCq/RnxZ+JbelsdsDMxswJhoiYvHen/I7PUb9kJ7K+obRHoYf5PrfRH7VP8Sj4hj6YzPY5reJLT7nEr0Sjsij8+lNxMBo6O/Uawo+1Nh4dzHBtK0PnMG2ucsEDUCL2ulsr6gsREwTXTdOW/5K8kcDUwGHr1nVGucyXFrjrmIFjussptqnhhi62Fw7Kzm0oDS1zCXkRnc5zxDWgmAAN0zeFkU0acrKtCVL+TnfRVu+rR/Ai/A1CIFB3fVp/BiM6DIyGhKk/J1b6H/VH4U35Pqzl5oTExz144xCM6DIzggpJ2VW+iH7U/hR+Sqv0f8Aqn8CM6HkZFSUr5HreoP2rvwKtcX06xovEWkXzbpsYFkKSYnFokJqKSkRGoFOTSgBpQKcmlAxpTSnlNKQDEkUkAPCKARTAnbEwzamIo03+g6owO3dGRPsXvFGo7MzDTka1mZwp9EAABoY31RPVuXz7TdBB4L0bZO2edFN7qha/oMJJkS2QJB3Gx8VVUJxN/X2uQHGllbTa4hzwRMBvzwb5p8VWYnbjmHMHloIEnPBgSDY6A+ydy44utqGsBYWt4wJm4Pf2BZ/FUG+k55cHGY+bmmJvZ5vvkqokXeK5X9DKBG9xcC6bTIcSDE9SyGO2/55jsG2Q4U/OACAQbsYIM2tl3KbtTZb6zJbRNR7hqM7Ojp0gBYHh7NypsFsl1DH4QPzS5tb0gADDR6NtL8Sr8Ov8ke5XV4H2N4zCzw70hhR1KVTiCC2SdDMR3b0COpdq7OTZEZ2GjgkMOpEJwCLhYjigj5upACMIHYjebrji6HQd9U+5T4XHFjoO+qfcgLGR5FYgnA0Q1+gOdsBpy5jo6JIHxVBsikHbXxgkEfpSCN45xn3qZyOxGTD0bQD6RAmQXETMcbHrA4qPyTZG1sUP6lSOzPTj2Lz8tEztR3o2IpGQbWM6AXSNExFohw0GjjJ3fwVjkSDFRmkW2RV1MJJkxoBYAaW3Kvp8nKYruxIzZ3Ng36OgExxgBaGs9rQXOsAo/nrMgeZaDoDEnuCj4jRJQvuRE8xCHmIUzDYtr2udEBpINwYi5mNOxOw+JZUEscDYGN4BEiRqEZx5WRuadlyScsERuAJBMcJIC835YU8uPA/5bfcV6vC8v5fiNoN/sm/9auoybkVVF5StRQCK2GUCBRQQACmlOKBQMYU0p6aUANSRSSAIRTQnhMBwVxyaxwp1Wh/oEjMLbjIN+tUwTgk1cadj13E4JwpDJLnGQwAktcNQYPo9hVdtHD5nBr8oDRFrHrA1PA2KreSXKw025akGBlk8CR4aK3x7g93OthzQN/G+g48VRazJ8hlau5lMEVLPLstM69FpLXOdJ1MHvG8ws3s2vUftHDGo8uMVt9tL9n8FOrvJrCm0y6zhcxlBbmbINogFcsPWpnamGpsuWMqhzrdIlvVwV9H8SPchU4H2PQgxHIqTlZynpYKmSSHVXNPN095OgLuDQd/VZeSbQ5X42uC1+IdlJ0YG0x2dAAkd66NSso6GCFGU9T3bKjlXk+xeVmIysFKvUJphnOMqtD6bhIDiat3sm8T1AL03Y22KOKYX0nAwYcJBLXDUGLd4sdyIVlPcE6LhvJmVHKukJKy5CxzyrjjG9B31T7lKXHGD9G76p9yLhY865A1nnDNpOYHMdmbEkb5mW3BBHuUbk3Q5vbOKZJMMfc6+lSKr+RW0C2m1rQ7W7gYAubnx96m8mK2fa+IdMyx94ib07rhT3M68d6PQ7d6Y90Iqm27tmjh456oGybC5JA1sLx96xTk7WSNMYq+osRVzTc6iTuHV19g1Ke9wLpcGgNzObuktu0dekrH1eW1EODcr3tBJzABoB4tadY64Vlh+UeHrOysqAvcAAC1wMRByyNVW4Tjq4mlSg3ZMseeJp82wANyBxMXc9xJiOGh7F0wrHhrqmbpOa6XDUOGluEDTdK54h+Wd8e4dEe72JnPEAnQZjmvJiAO4wBZQz6luTQudm4nOwSelF+PUYXnnLykXbRY1okmk32c4fgtjs4w4kTpAm5It/HvWY5SNA2rQBP9GB2E84APctmGndmLE08pQwkrjb+zebdnGhJBHA/cqeF0E7q5z2rASRQTENKCcU1AxpTSnFAoAakkkkAgnJoTgmA4IoBFAHag+CtbsLbDebLC6DEOcBJNotxt+5Y0KXgaxY4ObaDPfuKhNcyUXyNbiBTNam8B2VjmEyTYD0gXAX01PEbtWUDQ+VKHMiOjWzxoXZRJBgA3lCjtUANeWAtccroy/OgkFh1vB9qgbNbmx9B0mHNrAcLAejvGsEboTo61I9xVOBlL5RtoivjqmXSmG0h15ZJPi4+Cp9ibMdia9PDNc1pqOyhzjDRYkk9wNt+ivfKHsx1PEc6G9AtbLhoHCR0jxiLrNYrCVKZDalN7CQHAPaWktOjgCNDxV9VNTdyFJpwVjc8r9qU8DROycE0hrgPOa7hDq53hp9TdItuG8nl5JtpClWrUiD02NcDrBYY068/sWVxW2a1SkKFQh7WkFrnCXiBEZuHtWr8nOz3DPVc0tD8oBsDlBMxO4kj7KnSWaorEKvlpu561hquYTFuK6kqFhqzQLHdxlCrXlbcupivoSTWC54l4LH/VPuUIvTa9aGO+qfcnlEpHkPJhxFPPNwbCTe9tFc8k6uba1Zxblmk63C1NVvI/D5qZi99PZPip3JGjk2rVZMxTf7mFcGe5nZjvRu9ubRGGoVK5GbI2QJiSSABO65C8U2vtOpiaprVTLjaBYADQNG4L0ryn13twga0dF9RoeeAEuaO9wHh1rylQoxVrk6j1sKVocbyYrYbCsxtV4pvc9vN0jIqRqHdRGsbhG+ymeT1uEFV1XEGajINCmfRc6950JFoB01vureV2OxFauamJsbhgHoNbwZ8d/FXc7FZouTO1312uL4zNgOOmYHQxuNiriu03DSbujsifuWJ5GNc6uWD0S0l27S7fbbvW6os6RkyHG3Yf+0rl4iKhUdjrYebnBXOmGqS9pZvIGpBEjXr1CznLGG7ToX/o2SZj59SexafA0iXEDU2tpx9l/BZHyjvy42kWHSi3T69VW4TiKcYaLHhjm5HkgFutybbzxCyuPwTqLsru47iOpWuw9sB8MeBuykgGDvM8FcbS2cazQ0mNS06wfuW2MsrOfJXMQUFL2jgH0XZXjsIu1w4g71EV5UApqcU1AAKaU4ppQA1JJJACTgmhEIAcE4JqIQAU4FNRQBd7Hx4aCwta4Eei6Y0I3dRUrB1AMXhcsQG1ogkwCG2M71mg5T9gVS7GUpOjanuTpRtUi/cVR+R9je7TwrazHsd84RfTthZ/anJd+MbTrPxNR1Xm2N/S5XANAkNGUA6nW60ThIIO+yj7Ix0syuBD2dFwPEaHrBEFdapTjJ+ZHMpznFaMyb+R9KkQH1HEtl7yYDMjbyBB32gnipNPlHhqRLQHOAPpAC54g6nvVzi3NrV3U81uZIeBr0jA9mb2LF1NmYUNLxWqkBub+bGktHH+sFS7U+GxfFOpx3Nhg+WFB/QDjSJB6bmyAewG5K1VGr0QSRuvpM6QOteW4XZ2DBYHVasuDCBkGj9J8VsNrbUNJzGsuWwTAJiJAndoSe7rU41Lq7K5wyuyNKXKPjH9B31T7lw2fjOcptdImLwdD+YPejjHdB3YfcrSvmeY8m9qnD02u6Li5xhnzuAPVN7qy5HYh1Tar6j2hrnU3EgHMPRZod/FZvYADSXnLofS0EXnqV5yDqf+ZEk6seL8YFl5+a8rO3Dejf8AKnAOr4WtRaJc5vRFhLmkOFzpovFKuGe15pOY4PBgtIOaeEL3sk3B9vD7vcqrHbFYa1LFMcadWlIDoDhBBEPB1bcwZtPhmp1cujNFSm2rreeKkbiu2Ixb3hoe8uDdJ3d+/vWu5T8kK/P86arKnPVbnKWEOdJ9ESIEceCh4fk81hLy4vyS4AAAOy3+BtxEK6WIguZSqciw5E7NqU21Kj2lpe3oA+kQ2STGo9IR/BajDUCQLQYt23Me1N5OE1A572iCW83b5rmtLhPaQO5XmVofAgbuHA/Fc2d5ycmdGElCOWJyo4UN1A00vEm29eceU0AYulGgoNHg+p969Oa4FxP5gSB7ZK8w8ognFUjuNMD/ADut3StOHaU0l7metdxbZx2YwmC0TGsRxsVtNl7QJYKb22Js4QYjqNwsngNlVmjNTcB2kNMRNuKv9isB6NSC4AyHuLCDxEWK2SRjRa4nCsIy1Gl7CYI3g8Rv39qzW0OTZGZ1A52i+U2dHVucthRJIAIzgi2UguaevpcN0JYfCvBzMiJv2cNL6KCk4kmkzy8pq9C5RclmVf0tI5XkSbWcesbj1rB43BvpOy1Glp3cCOIO8LRGakVOLRHKBRTSpEQJJJIAATgmhFADkQgEUAFFBFACKm8mz/4yn9V/uUEqdyabOMp/Vf7lZS449yFTgfY1O0toOY4hrmbuiZzTuLQNd1lkdsbbqA2LWVLCoabiZy8WkZZ6wT2rZbVAdNLK8zaWTmuN0XK862zss0HRmkSQLEG3EHQrbis6V0ZMLkb1JOyduCnUNWqw1XEgjpQAREuj1oA8FM2jtnCGi6nQw72Pc0NDnPLgBma42Lj6qoMJgqlWRTY55GoaC4+ASq4R7fSaR2iFizzsbcsbmhwW28I1jOcwz31WMa3NnIBLdLZrCw3KJtPbvPOfULSHOYGgNPRBBuTIvaR1WVZQ2fVf6FN77T0Wl1uNty5uwzgCS02AJ6gTA9pTzztYWSFzR8kuUQovyVXHITbTK0nVzt+4BbXCbfo4htRtMkloMyIB6xxXluz9nVKzstNjnG0wCQ2d7iNB2rRbM5Kv6Tqji0BsjIbnv3BaKE6jVraFFaFNO99Sk2RhHPADWTqdWgbpkuMAWV3yMwxbtE0zE5HzBkXaCb2O/uVRsN0AEjMB1gReDqr/AJNYpr9rF7W5WlhAHCKTRr3arl1OF9jfDiR6Q1x9F09R39/3+KTiRrpuP593hwTy4HXx+4rk6mW3bccN3h93guc9DctThiqUtAF8rg4Ce0eF+4gLP4bZrarg2k8hrKuYuN5vJb169lzxVpWxocSG2y3JkxodxHd4KLs98Oc/NLfmiDaP3rO5al3haanU4gUQ2kxkM0brG468ej7VW1azndKBmzARJiNIjeZ3/cpdasQWtJlsiJAESZBtreFE85aafOBgD8wYCPnOvrwjVJPmWLTRDxtN9IkgyM2RoF5y6ns+9ZTl84GvS4ZOrQuJE9d1paLmuytGjejO8nWZG63DrWV5Z0slanI3EzYk3Bk8DfRasLxoz4leRljsuu+BqIgiDpui/arYv52vmIZDYYT6zvSJPAAmONjosvh9oy0NpZmuPpOAIjfYHeeKvNlV+aADoIgzJkwdTbUzx610GjnF1iaDRULWvId68EgzIng13sParPAVWwBzoMEcBJ6twIAmZ3nWVW7NxVVwkNaWAjfrcwNAD2dye1jZv0TPRaQBBNtToYvoosZpq+Lp5WAlrnEgCIkzvge+FU7f2bTq03NcZizSRdjtZB74UJ1QTzeZgY0jNYSRlmOrWZHHVGri2ucGtPpQ1wnNAaBvNwYnXeUrW1A85rUy1xadQSD3LmVc8pKDRUL2TBMGb3gHXrn2KmK0p3RUwJJJJiGhOTAnBADgimpwQAQigkgAlWXJITjaf1X+4KsVnyS/9bT+o/4Kylxx7kKnA+x7TsWnzdB9Wi2a5qtaYaHOLYs3qaTN7exU3lT5ONxbcPUcG08QAc+WCS3owHHfBmNd6VPFmmC5j3MdHzf4rjh64exr+cfULmtJc+7jImSZW90b1Mz9/r/RgjUUYO2/Tnu7L35krkFsiphKTBgmsJca5xHOCznBzBSaagEshhJA0MutN1lfLBXM02Pyis6nU54AZZyVmNpPjUBwD44gDWFY18Y6nUqGnWqUnGg4AsveSZIkSRII7eteb7WwNZ9Zzs9SsXQS+pOdxgSTcxfQSbQs9Wg1UzRvz05amqFfNBKTWna/8/77K3sXI6W7IwzcIenWbkc5lniqMzjL5EEBoAB+KofKXgmOxBJBour4dvPt6LgHtqZmyRYPMMmFkeTjcRh2nJiMTh3Od0ubE03NgRIzDpzN+EL0CrhW1QHOOaHAknV0tcDPfBUsPh8spOV9et/y6WIV67ypJpr2tpu+vIl7Dp4nD4aizBNcKRw9N+anSY/PXdHOGoSJBmeyAIXLb1HUuAbUNGm6sAAAKpZLxAsL7uJKkYOsaTcrKj2DeGmB26qFjAMr7zY3OsxdTo4Z06kpZnZ8ieIxqrUYU8kU1zW96Hj2x6xDcuoPDW3A6b1b8jWRtNomei6+mtKf3dyqNiskRmyyQN51ncrTk9TDNqMbB0cLyT/Mm866371yJ8L7G6HEj1sYdgbzlRzmtLsstgmYJk20t1rlj8KaYLg4FpBLSPnbhIFpvGiVGu0s5t9MVGZs2VzyLxF8w0vobLjtzFPqw0U7RAaHAAAX3CfhZZajpeFotfr/AEX041vG80vL006czjTw2GZmp16jqbyG1AIOjyYaDfMbXG4HtKhY/BkO5ppBu3LIEEOALb7pzBXGzdodA5qQqFzQ0uLrloBAB4xndwMFVePLi4v0NogaRAEdgA8FmxDpZY5Pt+fs9TXR8R1Gpfe/a3TQlVeT9HM3DCo/nC15DjAYHAtAblIkgk2IO5ZnD4I1KjaMloaKj6jokiAXPIG8w2AtU7abjNTmafPHL+kJBgtEBzWn0XQd3ALO4Yvp1A5hGbQ5rtdMy106ggkHtVtTwllyrvpb+aEKaq2ef73+vsWQZh+bLMO2uHNp88A/IOcYCNHNkj0p7iF55y2pAPouAAzBzjExJINuq69BxFaplIpYSlh5AzPpkBxbIMA7hIHHcsFy7dLqBE6OuSDvbpAEKcMvjLKKs06by3t76kbZlEwHEGJ8eHvWlwlJrwDMRZzdCddDvGllmNniYvYa74Whwxa2HNAyzxIndvNlrZgNFRltOWO6MZZkWj1YNvz1LpQx4ABc0VQcuYOva0WN5F729q40CXiSB6J6I0EkkCwtA3qLhT/TVGi9hJ00EtJiDc296iBHqYhgriaZc0vJMEEhtiLDcB7OK4Yl7mUnvaRzmawPpZdOPXuS21ipqMbSFyTlMaADQCb3Oq44nDZGh9UAPaDDSDOYxOaTxO5SAzorkscCdXDXiNSuBTqrIe49ZTFbHcQlvEkgimRGIhBEIAciEE4JgJJJFACVhyXdGMZ9R/wVepOxp84bGuR/wVtH8SPchV4H2NTyk2sWtcxpiYE9qOz9ouNKmBqA0d0AfFdOT+GpvNTnvTLXCmSQ0CoAMmYmwBvfsUjGbONGpkcG5oBOUhwuJFxabru+Fpmvy3fqch8JW4nHZgwN/nA4ye2M3ssuuCxTiYdE6e39ysuSey6FQ1BXflIu052M+dBHTaeo2UHb+FZSxBbRdma0wHAh06b22NyRI4JZLc9QaeW/It6TA4FpFlPY+BCqsBT5wSS4xlAa1wYd8mSDwA71bbTwgoODGuLrTLonU8OxYVi06qptb81tV/rvut69r7y90YeD4sJ3fNWel/fnu1Aaq44qp0Hdh9ymYnaVSgRTpQ1goUa2bmg81XPFQva4kHM1pa0ZGw7pa2UPbDugx+XI6ph6NV7IIyPqUw57INxBOm6VbGqpO38/YjKk4pSueS7KrBrd8mwEkTv1CseSD821KR+vb/Bfa6icn8Pmba57dO5WGw6WXalIDgd3/JfNlwJbn2O3Hej1cUxwjske5ccVQDmOZOrSNTrFt6qdpYk5+aa/Ieac5sNaS949Fl9JE9ei77GqVZfSrgtewtmReHNzCYtMe9Qngaiw/j6W6c7XtctWIj4vh63+BUWvpsawsbAcfRdBybpmBPepOVrhMW3bh4byoRwjsTUqN580gx7WZcocDaQ8kvEXJ3I4TFGpQGVwFRvRJmZgwCB1xKzYr/zp0aSqtrW2mt1dXV9PsWU8Wqk3FJ368jhjcM5jZ3udbjGs+MLjtKmQ9rtz2Nd3kfw8UMAatd7S6o7RxBABYIMZY4nXw7VbDDh7mtqdIBpIAtMB5DRGk5WhZZ0JQlGD3uzXZ6GmGJhOOeMrpb7X/UqMO91OIJaNSNW9Zj7lk/KIDmw+aCYfJEXu3SLra7N2i6v0X06bQaFSqObpuYaeVrTkccxzg5i3pAGWnuwnL1wLqMTbOCDIiCzce3VaoYeVGuoy1/oolVjVpOSRC2a3Tt0O9aLDvkZCIPrQQNBItvj83VPsNwghwk66wRf2+xWGOxzacQXEkDINJINyTEQNVtZjJ2J2u2hTMhznzlZaDPzgTrlHXqs+51Su41HvOs5QTDRx/eU6jQfVfmcZMWGWQAO8D2hWbaIYROUxraSLGCBpEpCOVBoBDgCHEWcdQ0WMQfzCW2K7QMo6Rm7jqY3ErjicUxvoC8azp+9VlWoXGSZKlGLe8Tdhr3SmIlNKtICSQSSGThgE8bPVyKHUnjCpkSlGzxxThs9XPmwTTThAFT8nJfJ6tHLkXhMCv8wT9l4fJiqfWx/wUo1QuGHqziqX1X/BWUfxI9yFTgfYt8cC05muyyQDpfxXfCPaLl7Z7QqXbTJqh1RrnU8gDYBIa/MM0gcWyO0jWFnalAyYa6JMSLxumN8LoVMZKMnCzsjDTw0ZRTzfBtMa+DLHgSb3B9664Qt+c9pPaFheYd6p8ClzDvUPgVDbpWtl+Sexx9R6XQxTGEOa5sgyLtMHjBT6uPDiXOqAk6kuC8x83d6h8Cu+GogZs9NxlpDYboTvVaxEVLPkV+vP7XHsitZSPVcDymq0W5KWIyt4SxwE8M0x3KDjcQ5we5xLiQSSTJJO8ledYSkAZfTLtIBaT48R1WniFqdjh7cNDwQYdAOobuF1oo1s8n5be5XWo5EvNf2M3sCplbm3RBPVPt4qy2LULtrUXXgg5ZscvNPAkbisphqzgLE6RCu+Rr3HaNAumZdr/ZvXDktGdeO89V2jgadUfpQ0AaEmDfrt4IYRlCk3Kx7QNYzC56zMnvWU8oWArVKlNwpvqUgwgBgLstTNJc5o1ltp/JwrtjV5thq0TaaT59yrjmlTyObt05fkWNxU7qOvX9z17HYTC1XBzzTJ45wO6xuo+KqYYOaA6kNBIc0ZRoI7TAXlXyLiP1at+yf9ya7ZFcQDh6gnSabh8EqlOU4qMqjsty5LsOE8jcox1Z6jkpsDstekHOJkh7QcszlBJt16TC4t2k12Uc9TGXLLjVY2C1wMtvMRPgvOfkDE/q1X7B+5dXbAxOUDzWqCJJOTWYjwj38bVbHC93InGu4qyij1rGbe51hDMSyplglrXsccvEhtzB48FgPKSwRhXAXIqZjxI5vX871D2ZsLFNfTPm7qYa4Oc9wDbDUTrcWjfKleUP0MIBJgVRJ3/wA18PehQy115r6BmvSeljM0KxNpjrEzru4KZhaV8z3E9sknqvoooqANtqumHcD6RtwWyxmLhtTMA0CAPVkeJm6c9hIjQKPTxjQIGieMa3ipKKRFtgOETThCuoxY4o+cjipECMcIUDhVKFYFOBBQBC81SVhlCSYGtNDqKAwhO4+CufN43rpTpjUn2IEUnyWU1+x3LRNp9fwXUUj1eKAMi/YzlHfsZy24pO9VveUjhidWg+CAuef1Nju4Kpr0xQxNIvIaCHiTYbtSvVvMZ+aFQ8o+R3nbWgPDC10glpdE6gQRrHsUotxaaE7NWZSNxTNz2/aCeMUz12/aC5t8lbvp6faadT/cQHksdMc/T7clT/cWzbZen5Muxw9XwdvO2eu37QXUPb9JS/bUh7M1lx/kmf8AT0/2dT/cR/kmd9PT/Z1P9xG2y9IbHD1fB0qVmt1qU+6ox3/tcYTPO2eu37QTT5JX/rFMf4b/APcTXeSh36xT/ZuH/wAiNtl6fkNjh6vgecWz12/aH3qNjto0mscTUZobZhJtuG9OPkpf+sM/Zu/GgfJUd+KaOyi4/wDWh42duEFhIJ8Rg8BVDdfcrLYO0GU8dRrPIaxpgnWAWuaJjtW4wvkxw7R+krOed8DIPC/vTNoeTfDuAFGsaZm8g1J/zCFznC5vU0Xv/FOC/WafimnlZgdfOaft+5Zj+Sw/rf8Ao/8A6IDyXccWY/sP/uqdnRb4xon8r8F+stPc77tFUbW5UYRzmFtYGCCbO3GRu/MriPJWP1p37EfjRd5LAP6d5/uAfFReFixrENFv/wAa4IxNdo3+jUN4P9TTRJ3LbAaecdpyVd391VTfJazfXeP7rfvRb5MKOnnT+9oHwT2aIeOyZjOW+CymKpfazQyoPe0D89Sw/K3atKuKQpvLsjqpJLS2A7JlAkD1Stf/ACW0f1p3g37kR5MKA1xNTuA/CnHDxjLMhSrtqx5mXogHgV61heQeFZvcesz8FPpcnMO30QfAj4q+xTmPGm0HnRjj3FdmbOrHSk/7JXtTdmUxo0+JTnYJo0n89yLBmPHKew8Sf6J/guzOTuJ+jIXrbsIOJHiuLsKPWPtRYV2eZ0uTdfe2FKZsCoNSt6+gB85x7lxOEnWSmK5kBsZ/H2oLY+ajrQQK5oG0+zwXQNASSSGPAHBdGs7kkkwOgoApjqASSTEODMunwT3tFrlBJSQhnNlzupSabI7EklIR2cwIFohJJIAw3gmOeNAEEkxABO4DvQNFx9XuCSSGMHm08EjhBwHgkkq2SR2NDeDCIYeI8AkkokxOaTqUAwdaCSQx+XsRNPiAkkkM5uwzTuXF+CZw8LJJJgxhwoHHxTDQSSTI2GupELi6fyUkkAR3MPD2rlUYT1JJJANFMLi+1kkkxHMsKSSSBn//2Q==</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?q=Motorola%20Edge%20Plus%2017%0D%0A&amp;imgurl=https%3A%2F%2Fwww.cnet.com%2Fa%2Fimg%2Fresize%2F040dc9566594555a69a946161cdcc2bf88fbc065%2Fhub%2F2022%2F03%2F23%2F7fc0e352-467a-4a98-9f20-455d60fa683a%2Fpromo-motorola-edge-plus-2022-1019612.jpg%3Fauto%3Dwebp%26fit%3Dcrop%26height%3D900%26width%3D1200&amp;imgrefurl=https%3A%2F%2Fwww.cnet.com%2Ftech%2Fmobile%2Fmotorola-edge-plus-review-a-great-phone-overshadowed-by-competitors%2F&amp;docid=KUsQChQDdbFZ8M&amp;tbnid=23rqtrL0vHs-QM&amp;vet=12ahUKEwi0lZWVp8yFAxWHF1kFHcFlCBEQM3oECBgQAA..i&amp;w=1200&amp;h=900&amp;hcb=2&amp;ved=2ahUKEwi0lZWVp8yFAxWHF1kFHcFlCBEQM3oECBgQAA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTEBMVFRUXFxUVFRcXFxUVFRUVFhYWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0gHiUtLS0tLS0tLS0uLS0tLy0vLS0tLS0vLS0uMC0tLy0tKystLS0tLTUtLS4tLS0tLS0tLv/AABEIALcBEwMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABNEAABAwIEAgYFBwgIAwkAAAABAAIRAyEEBRIxQVEGEyIyYXEHgZGhsSNCc7LB0fAUJDNDUmKT4RU0U3KCkrPCRFSiFiU1Y3SDlNLx/8QAGQEAAwEBAQAAAAAAAAAAAAAAAQIDAAQF/8QALREAAgIBAwMDBAEEAwAAAAAAAAECEQMSITEEQVETYaEiMnGB8AUUwdEzUpH/2gAMAwEAAhEDEQA/AOjsalFJ1JLnJqCE8ptKROQoIglJKIuRFy1BEOckEonlBqFGsBRhGq/N8Z1bZWo1kt9Zo3KQK7TsVzHMek7y4hvBRKHS57XdqyBrR1xQM17pVJknSVtQC6t8xqBzJCwTmWctcahhQ6NVzT2ldYwDWQo1WjzC48s6dNE55K2aJ+ALSJSq1QcFEw2o7WCkPCi2c7dkWs5NDEPHkpGkJRohCmC6K57p4KRhYkWT5pBA04RUTakS3PGm2/BKp488VCDihbij6dmvwScRidTYUitV7AA5Kqe2LhLqYqQm01yHUyNhm6qx81q8bp0HSsrgtyRurI4g2CpF0rK6tid0LxBZUfBsdx9qnZu5zqhLTvuqfAvFN5dtITzsUZJnyRU6+k58rsi44OIgrV9AXNpkt4kBZN1bUbq66O4kCsPFMp1NJeRMZqOleEFWg5untC4K5njyYA47ELr2Zfo58FybNsQOvcIhdnW41LFq8bf+gi9OVMqjhz4IJxzBO6JeNpR3f3mTwdzLkJTcopXtUEdJTbnIEpDnLUYIpBcjLk24oUEBKASZRhAIuVmulhOkrRys50m2RSA3sc3/ACXcqkzNsFbF1PsrI553k040iUHbGcszB1JwINl1DKc16xgBPBciWv6M4o6WqKLovcdR7RcFRYzGOBWkq12jfkspnLgXDSpSimM0nyT8JjpF0+a07LOVJAlO4TNYtCjLF4IzxLsaFtkC9R8Iyq/tEQFNfhiR2d0mloh6bCa6yYqVeaYxBqNs5pCiVsSZTKG1m0Fk2sITFXEhVFSueajuqlFwfYGgtn4zgEGvVN1hTtDEXQp0NpLkO0pDsWdQHNN9dqF0imCSmjC2Iy5oV2xB5JNSvCqsRW0mAb8U7TDjcpcsaZOQupiiLlWfQ2s44kOOwn3rOVy4uJOy33QXLIZ1jhv8E2GDlNBjE2WLxfyZdwAXKek2I7bTG8+a6D0qqtp0TBibBc4xz21HiLho3/G69PqpR9FoRWpJkCCeEoI6uPAJAIQXkafYv6kju3BEUQNgiJXq0dAJTbyjKQ4rUYKUklJc5JlAIqUoFNylAoBFEqvzPLxUY5+tojgQXD1hrmna+49fCdKqsViQAaXF7nQCQJlxEXsitmLN7GbqYMx3acXE6Kwkjf8AW2/mqLMsnpm5ZSPqxA4/+o3WudrOlsyI6wDW0jTBJMzYlrCeZhQM0w8bwJ7QAIfAO1weQVmkziyZJQjaMfTyVp2pUY5/nJ+GIVlg8qewQ1lBo8WVz8cRZWVBnAF3qt9v/wCbKzpsAAgERxNydiD5fem9KHg899dn/wC3win/ACJ7iAepJNhFKufhifBR8Rkbo1dQx53ILcTSMXuHda4DYwSCJWjphw24A3nTHkRxvw8Ur8mxPVms3WKcQSHfNG8gmSAZ4JJxxQrVSvbd9ymPrOok9m3W/HYwVKiypOnU0TBa/vsI3a6NyOdptYbJ7B5Yxr5KkupN6+rNv0c8L6I+wJ3sjYrncEmepHK5xT8o02UYI4mozD0oBdueDQBJJ9S6Bg+gGGYLvqudxMtHuiyw/oiqTj3eFCof+ukPtVH6aulOJdj34OnVfTpUWsLg1zmhznsFVz36TLoDmtA8PFDSpFEdWxXQbCOs4VT/AIo+AVa/0Y5cd6dX+K9ecn4yqdqtX1vd9jjCGHdVeJ1vMmAAXuLjyABWUIrhGPRLvRdlv9nV/ivSR6LcsH6ur/GevPIw1VzmNaXEvcGN7Th2i4Nh07XITeYYWpRqvo1DD6bix0OkagYMOmI8UaXg1Hos+izLD+qq/wAZ6xfT/wBHtLB0/wAowzn9WCA9rjqLQTAcHbkTAuuavOKwL21KdcteHPAdTe/vUyNQMgBwuLXG4NwQu49KMwdiclqVXgBzqAcQNg4tBMetBxi1wZo40HQ4AGym1OsMNpt9aj9GsD1lUTsFrcVWFAjU3scxw81zSlp2RCezKDBZRBl5vxlW9LD0ttQ9qnVKIeNVMi+3IqhzF1NpjE0i0cKjZj3bKLi2yT3Hszyeo+DSgtm8HgtblmYdTRANoF1jMFgajO3hqxqU+UyQEzneau0aT612dNtuykV9NEvpR0k652hmw9ircPhalQaW2HEqpw1zK1uV1YAhR6jM5y3Jy+nZCaXRdsCwPtKCvmVrIKHqC62b1psPJCUTNh5I16x3BOTTktyQ5Yw05AIyiKwQI0mUaUIJXP8ApTmJbjWQ6BTubEgHVrbIBmPvW/XL+kdFpx2IMknWz+6B1NOJ8yfcUUrZDqJacdkulmVrPaNNN7QAyqZ1tc3sucSQO1YWAkWtdfWvqPLn8SLCYEAANHkAB6lAo4cE3kb/AGWsrfDU57J9f33FldKjxcmRyJNCjJ4c97/yEQrClRtMi8iYFgJn2pjDUx4mLEbcbRxj8c1PZTnYXEAzflEbTadk1ktAhtFs3jzi43O/H+acxWaPGHNDWwMgsBDD1jmm7muOqB84TCarUzEEt33BG3KJv+PNRnUrTY2ngLDx1XCSeOORVJX3GhkljvTtZicwfprVI5U/gVEbUcdlNx+H1YipJBtTuJgyDG6DGDguPJbkz2cO2OP4RtfQ3SjHOJ36h/8AqUlhvTC6M4xfI9QD/wDHpH4j3Le+iE/nz/oH/wCpSWO9JgBzrGAgEfIWIkf1amjFbHRHgxT8d2WA6TonTAOondoc4/NBvA+2UjLseaRBDi0idJHIghzSJFjJU7D0xUAmkxoLXQWt3NhG241A25hajEZHSGHhtNhfpaJ6shxNgXCWz4yrQg59xZS0rgzWGzQNdrA1dXoqnhJbVpmBynb2KDnWYDEYitWILRVqPfFnFocZjgCQPJajpJh2U8NUDGNZOidLQ2Ye3eFiCtmg4OmDDk1qzR9MqOktuDL6xMANlxbRJc4A2JBaI/d1fOXWsf8A+AnxoN97WrjXSB0soE67sc6Xu1agQ24HWP03m1uHq7RjB/3GPGlS94YpeSrOedDWaXuniFpsawOaWu2Nlk8E91NwI4LR0sV1jfHiuLNFqVnLkW9lNkmJNCq7D1D2Z7E8uSvKeEDy5r+0w8+BWczyk0upvJg3FvBabI6gdBB4QR9qMVe5lG6Y3k/RNrXE06hbfYG3sVd0uygNIkifitlSYGmQsx0mYX1W8ld/TErTSMvSohtjx2VhgjoN9uaVjKIJgcE5h6YgNqCQfaubIrJzjuWAzCnzKCcZk1OLPt6kFzk/TOj03WHklakxRd2R5JUr3DrFkpp7kZcmnuWCAlFKQXIAoGFBHKRqQ1LBFSubZ2B+W4kmQNbBI+go7jjuV0Ylc8zh7RjMVraXDXSIbJAJOHpjtEQbENNiOKydHP1MdUK2/YqgRbaPt/BMe5WdEAwRBNhvHHn+OKpcIwiJifLgOFz5K1ojwvsfvC6DwbplpSaeQ4SOBHEe/wB6fh4vLTyFyCDE84BsFGoB2lxDZDZe4yYAE3mwmxt58EunVLTMAzzEnhI9ft96WyqVK2PVanq3JAiZ53v8FX4msTJAk+Mg8bzFjdSK+IOzeNu7pnneCeCqsVingHtOO8idI3F484/ktYHRS4hp66qHWPY38p3RbJoT1lQu/d58vFM4rF8lyT5Z7OJfRH8I33ofP57Vn+xP12/cqb0sdF8U3HvxlKk+tSrBkmm0vNNzGNplrmi8ENBB8fBWHoUcTjK0/wBj/uC6+QtHgvweWm0a7QA3C12xt8lV8OfkFLOMxJGl9HEEcjTqx7IXpc0xyRdUOQTp0Y8tZm/EPYWdTWgxM038DPLwVR/Rtf8Asav8N/3L151LeQQ6hvIexZ78gW3B5Ly/o/iazxTp0akkxJa4ADmSQu+Z9gjRyrqzaG02+wtC3TaLRwCzXpDE4Vw8WfXCWg2cXzXCkMkH8eCeyLEAN7Rjsx5osyLjHIe9V9Rp08gD71GUNRKSsm5keyIvBVz0deTcFsKny4amuB3v9yj9qm7ski5sPNCMNI8VSOjE2VJmLe1J4KLludyIfKGa4mRZO1ZSNMgNu4qQxzXFpG7bEJnBQ42VHj6jm1jpMELlablRGk20+TXujgQgszS6SuAAc0EjdBHRMTSzqzMRAAShiEgYUpX5Kq+pI9HRES6smnVSpLKEJbqbUPUkbSiD1hR9YVJ0tQ0hbXI2lEcPKUHFPwEkvATepIGlCQSsNm9M/llc+NLy/RNH3Lc9aFjM6k4mtAkHRP8ADbCvhnctzg/qMH6D0+ww0esc+Km0muLgA2Z223I5z4cuKdwWDdUDS3QQRqN4MbnyHvunsdjBSqNDC0QHapILRfcC0mTYcU8upjdR3e/x5PMxf0/JWrIqVr8u/A015EsJImQ5skAtM7g+Z/Gzj3wLOHHe8eVjbwUR9ee4Ha9Ti4nkQDEDjz5Ecd1b5dkNerSFRjWydtRMBo48fYqRkpLUicsWRT9Plr4/nsVNTEA271riIH49X2KNiavHstd+1Ha4iAAOXl9qlVGEvNJwAeHFsAQJFje8iyXjcorspuqFzdDSJDSZBO3AHdVUW1ZFKTukZsEGpWJJP6MSZB7p4EkqvrETZP4hx6yqL3LDwHzTwTuCw15K4cn3M9zB/wAcX7I2fobwZGLe/wD8lwI83NI+qV10rmfoskYqoIt1JPsc0f7l0sowWxawIkEE5g0ESNAwYWa6dn5D/Ez6wWlCyvpBnqABvqb7jP2LBObZvgI7Y23/AJqkxNL9Gw2m5W4w9DVpnZ3x5eRVLn2XfLCNgPYhRFlTklKaxA2hFj6Pa9ZVh0YofKOJ5kI85w8SRwMoUUXBSubDiR+LKTTcT3XDyKarNuorQQZFlgFtrdTBcG+xUuY121Kge0QTuPFWHXOLYifJVmKY0EETM7FBwXJrt2V9RtyjTtVgJKCXcb6Tp1DpAptPOweSrqGR81KZkwUnR2UTWZi0p1tdp4qGzLAE8zBwldDUS+rQgBIAKS4eKWw0OFwTToSYRELWagy4Kmp4DrsRWbBk9XBgkDst5eXuVqT4J/o68iriA0Eud1UAbkAGeG3j4qmN7k8i2KDEZW9j3mjqaNHVyYks3MWttvPkqitRII0gb22sd+6Z2+719PbhGuLmPr0X1CSNAeCbT2A2N95vwWcq9GKlSq8U3U2htxrJDWgwPmgnfguiDhTcv2eV10Ooi4qCfhfut/gybXaXEmXOM6nEzP33lbLIekoZQYzqyS23fojjyc4Hkdh61R590ffhNLnlrmv1AaHOOl4AN9TWnYjhzUHDZXVqfoxJgujchoiTEX4K2uLSrg4On6fqvWlGCcpJW/jd2LoZmGYsYhzJAql5bI4k2BNib+S0XS/pHh6tB7WUSKjy3taqRgggknq3k7NNjb1rG9W5zwyAXFwaLgXJjc7etSM0yCvRYX1GsDQQLPDjuQLDyVLruRjPJBSi1+fYpMHh+sq1SeGjw3B+5W7KYaFW5TapW/8Aa+Dk/jK3ALlm6bPZ6eLcI/hG59FbgcXU+hd9emukFcv9D/8AW6v0B/1GLqLghjdo6JKmEgiQVBQwjRIwsYMLM9Nu4z++PZBlaYLN9MaukUyf2vi1wQCVWBy60RbcKoznA6W1SAZP2i61WUZjT0iSJ2QzCpSOo2usmJKJhckwhZSkiDqlMZzAmeK1WOx1FtOAsPnWPD7AJJOikFsVb2pgtUjDNMaSiLNwgmJKNbDGojZPdYHDttDh70G0pkcQipU1Ql3INTBMJsYCCsyfBBLriV0S8HSg7wSg48ApjXsSjXHALjpHfZBJPJFpJUipLuCZ6g81tgiHU/FNwOak9Qi/J2rWYZgJLiFJFIckCzwQsxCc7kFGyXHPZjXhmkOcymBqIAILiI38OEq0IWfrvazHF7myG0qTt4jt1YI5mQLKmN7k8qtUblmGoirrDXAhzqt6rerDn2c6I8DbwUuv2NRLdUiLENNiDubIUyS3W5pAMau1I5bG8SpFbbaeEDcyqShFprs/87EH1TybuTbRhummI6xjGClADie1UYXEuAADQ07dmPWFW5bmrmYc0mhrfmuJe1rrEGRLhO0cYMxF1rcxwQqOc3SQ5gFiBseR+cFBZ0VdUBI0x+8L2QmseKKxyVVxV/49iEP7iOZ58L3a3tLtXn3RgaVbTVbUjuuDomNjMTw2Vnn2Ya6TxpZ26gOptYPIguPdB27W/wB6sK3R/rKopCA5zg0EE6Z2k22hN5t0CqUqL6zK1N4ZGpo1B3e08fEhdUckWk0eTPB1Ccrdt7v3/RlujrAauI1cqPwerWphmcGqryzFMoVq/WTdtCAecVJ9WykYjpMwd1i48u8me90sdOKKfg3Hoxo6cTUMR8kfrsXRIXNvRRmor4iqNMRSn/raukquL7TZfuElqQQnCklVJiIRo0FgBhZLp73WR+0PgVrQsx0xbPVj97/aUJOkx48mUwzinqhJ4KZRoBKfR8FBSKOJmsbSngqqvQ8Fs6mGB4KLUy8HglbQyTMXdpkBJrMcTYLXuy5o4Jt+Xg8ENSRnCzLdWe9xSurntN9YWjOUhNf0MAbKkcpGWDcpRTBQVucpHNBL9JRazbCmBwS9BVT/AE249yi8+YKL8txTu7TjzU9Jey3FMonNA3VdTwmJd336R4KUzA0x3nOcfEraUCx2RzCQ6kN0sMYNgm62MY3vOaPMhDYO4VSq4d1spttV3EKHiOkFBvz58hKrsR0qZ8xhPnZExeOkrMZyycU4ExOHp8Yn5SqN/WmK/Sese6Gt9UqupY59Sq9zzLhTYBYH57zEKmNOyeTg3+H6QvqAUmdUbAntO1AbmR1doN4LonipmEzkn5N7hTIcWtqGDJERAm2+x/ksDWzmvu1wFxJiJm1/CynY2qKbKbHaOtcRUfqIAbY9prnd27Sbbexc+aUtSvjwHBixw3jz/K5s3mCxNM13sNdtWsGjUA3SQ0XBdFj3gPUApxpGTBbwMEEwediuNurim91Wm5xfpqFjmuntAaZBtYWPirFvTTEMpMYKgc/Xp1uhziLvF/K3qVMk4ZkvUV/Hb9Bk8mpu/hf6o6VTwYa9rwbgg32n7EMxpaqVRjabZqRqcXlxNwYAgQLcPiq/LOklKoGB/Yc5uoNJDjaJt3huNwrTr6btiPUQU8VDTUXsRk3dyRxDphhDSxtRsR8nRP8AqfcqcBaX0lwMxf8AQ0PjVWYahLbYpHg6V6E/61X+hH12rra5H6ER+c1/oR9cLrivi+0jk+4IquxbnmerqhuwALJg3k7eXs8VZJmoDePVYKqJsrm9dIPXWm46s3FpvpkWn3bwSbQFMub2ha3Hsjx8PL8bPwszIAWS6b4llM0y8wNUT46Stauc+l93ydL6QfUekmrix4fcKw2Pou7tRvtUsVgdiCuSNeltxtRvde4esrl0e50ajqryeSacuc0+kmJbtUJ87qXT6a1xZzWn1Qg4MKaN2GeCJ7FkKXTkHv0z6iplPpXh37uLPMFDSw2XpICbJlQKOaYd3dqNcfEgKW2pq4iPC6ZRBYg+aCkBjefuQW2NuW1fMmN772N83D4KvrdJsOPnl391p+JXPWp5qA1GtrdLB8ymT/eP2BQa3SSs7u6W+Qk+0qk1IByNGJlbMKr+9Ud7Y+CiOM+KTKSSsYMpBSkRRMIchgnQ+pJj5Nv1nIPBTNQ6AXgS4CCN5ZvYftA/Ep8fJPJ9ptG4nDuogFzWFrXRA1CrMFrXdrsRcbclSZSWiuypX7bAAHG47MtkSCIOkGLrKOzemYgVBv8ANJ/HBP4XpGKbSGh+pzgXVC1xdpAgM0nskSZmJXfm6mcpQkl9t/Nd+3yebi6SEYzjf3V28X27/Bu+keHw9RzBhgWNHf1AkkybNLiSLFsq66Oud1OHbTqBrAagcGPYwh4q1DNQSCZZ1cTI3sue1eltA9+m99hINNzW3OoiWw7S4xPkqQZpQlsawG3HybjB+O0j1rzsuTJmm5yTVqvL45vz+jsx4o4oKEJcO9tv1Xg2+Y5jR/penLmdWMUBqkdXpdDnRFo1iZPI81b5lj8ZToY92OrUH07HDtBpOOrruzoa2Haer02MmZvC5NmGdCoG9nS4bkNd2jeCQdrGIHIJp+ZsLdMPcTPzTI/Z8/5Ixi4xaS5Hbt3fBIzHMjWrPeZs1jRJmw1x8U3Teo1Fh037xJJi8CAGtnwgn/FzlSqTClcVHZDpt7nTvQefznEfQt+uuuLz70Hz5+BxPWtY6o1zSyoxveLSQZb+8CAfaPFdWZ6RcD84Yhng7DYgketrCPerYnsSyJ2axIrU9TSNpWZb6Q8uP62oPPD4lvxpp0dPct/5lo82VR8WqpOmX2Go6BEzedoTqzzeneWH/jaI83afilt6bZYf+Ow3rqsHxK1mqi+XMfTM+KdH6X/Y9bP/ALYZb/z2E/j0v/suU+k7pPRxlRlPDO6xlMlznidJcRADTxABN9rpZ8DQ5MoxyDimWEpRKgWCJKASXEpJJQCOQiLUgPStSARGlKp1Xt7pI8iQinmilYxNbm2JAtVqf5igoWpBAJeNcnmuUVqdYsMP6kC5ICOVjCtSOUiUJKJhyElwRIF6ARCTVgtII3SyU25NHkWXBAODEJp2FVoWpnq7qzSJWyvOESPyTkrOoxKpsU5DFLUoQi6jwVvUpCUl9MQgGyso2UpglEWKRQZdIMjV9BsIA/UQtlVpBZfotZakmV3YlUTlyPcjvpDkE06k3kFIemHKggycMw/NHsCQcBSP6tv+UJ7UggMRKmU0CL0mf5Qsbn2Wspu7AAHIbLd1HBZTPhJUcqVFIPcyzmJJan6gTBcuUsFCTpSpRFAAKdFzjDRJ3sPelOwjwYLTJm3kJPuupOWAy6AD2Hd6NO7d54Kxa5wjU1ky+Y0z+jEaL8omETFM7L6luwfwJ+xNtwVRwlrHEb+o7K+kBx0zrcZiWSCKZAtPkgIc0dkAHRAIYR3dgHFGgGZhBLduUEoS3plPtKCCxQMuRAIIIgHA1GgggYSUglBBEwjrEnUggmQrHmooQQTkwiEEEEjGEOROQQQARiE/QF0aCEeR+xrchMLSMdIQQXdDg5Z8hOKYe5BBOKJlEgggwoarGAs1mgmUEFKZSJQYgKG9qCC5HyXEoyEEEDDuHxBYSRuWlvlMX9ylHNSZGncEG/Eta0EW8J9aCCIBT8ynZpG/zrCWlsi3ig/NTYhsQQTfeBEbWQQQsNFQ43QQQQMf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEhIQEhIQEhAQEBAQDxAPEA8PDw8PFRIWFhURFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGi0lICYtLS0tLS0tKy0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAIDBQYBBwj/xABFEAABAwIEBAQCBAoHCQAAAAABAAIDBBEFEiExBkFRYRMicZEygRShscEHM0JSU3KS0eHwFSMkQ2OTohZiZHN0hLKzwv/EABoBAAIDAQEAAAAAAAAAAAAAAAIDAAEEBQb/xAAoEQACAgICAgIBAwUAAAAAAAAAAQIRAyEEEhMxIkFhI1FxBRQVMvD/2gAMAwEAAhEDEQA/AN7+CSdr6Btjq2WQOHQ6H7Ctovm3gPjObD5CG2dFIR4kb75SeRB5HuvZMM46ilAJjLb9Htd+5WkwW0vZrklTt4lpuZc31bf7LpP4oomgkzsFuRDgfaylMvsih/Co7+zwjrN/8OXmLVoeOeJ2VsjWsv4MV8pOhc47ussvnHVVKaWi4429hBCQCH8XuniVD3QXRk1lyyYJV3xFdoHqx1lpOFK6NhyuIb3OgWazhSRPAKHIu0Qoumey0mKQWHnb7qaTF4B+WF5zhclwrCXZcWfLnB9aNXjT2XGNcQQBpsST0AXmWJ1RdIXi7TysbEeyt8TcqCXddPiu49mZ8vuh7cRm5yy/5j/3pzq9/N7z6ucUIQonrZYnqFurT1PuVG+rVa+6jLlOxXUlqZ7oMuXXlRkobDSodHqbIoMQtMfMj7hdHjY1KFmbK2pA4UTwpM2/qmOOoSHHYVhEcWi0PCPDLqyXXSJli89f90ITh7DnVLwxo/WPQL2LhrDWU0eRo9TzJU6urI5K6D6LDWQxhjAAGjSyBx3G20kRe7caADclWFfXsgjfI9wDWNJJK8Q4ix+SreXEnJc5G8gOvqpHfspx3oDxzG5q2UyyHsxgPlY3oO/dVNQ1SR7JtQftUlH4DF7BimA6qVyY0alKq2X6QyRSU8dxdItuiqUeUJ+PHcgZS0RRuyOBWkpqzyhZ2rZcC3VTwTWCXlhUtFXaM5G5arBax4sAVkmLUYC25+SzWPovKjE5QPkqCpxl5Oqu66Mhp6WWMmOpRdmD1RZDEG8yfZd+nD84KncU26W8aYxZWi7FX3+tSNqys+nB5HM+6B4fyGs34NE2tUorVmhUPHNPFY7sUPil+5fliaQVgUjasLMCsPMeykFeO6nWaL7QZ6PgVSDZaKQ6Lzrhiu15+y3basFvey4vJg1kHxaa0UeLyaqspaeSYubGM7mNDnAWuAdipccDzctBKP8AwbOPi1VwQTFHcH9cBdfiX1SEZIr2VzsKqf0Mv7DlE7Cqg6eDL+w4KPiH8ItX48rKRkYip3Oa50jc75MrspduLNvsBrb6tFgvGTJqGSslblNPmbOxmt3gAjJf87M3fYm19LrbQnRmH4RUfoZf8t37lEcIqP0Mv7DloeGOOG1spgdF4TywyRkSeK0tFrtd5RZwv3G60cjlKJ1PODgdSf7p3zyj7Son4HUj+6d7sP3r0N7kO9ynUujAMoXtflcCHZc2U75Lhua3S5A+auKPCyRdE1NjWa86J/1TRlXOHFuU+q7XASliba+zlc6bxy0Z2fBzvbmu02APlc1jRq4gendaidzcpVxgL2MAeLXvqUc8UY3KhWLNKVJmi4Z4dipI2saPNYZnc3Hmjq60YzXsOadFXsy3JFgFgeNeKGyOEMbvI02cQfiPT0XOxY5Tnv0bclVZUcW4lLVPLcx8IHRo2cRzPVZQUxuR0V8ZgUDnGZy6M+NGkJjlaYNHQeW6klw3y3stRgWCunjDjo07d1eDhYBozHyqpLDCNMT5pSnSPK6mhII7qP6Kt3jvDxa9mXUE29Fw8Ki2jvNZZljx9rs1RySqmYWCnuD6pSsyturWqoXQF7XDYlVdbIMpRTx9dotStk0dPma09QmS0din0tSMrR0AUk9SL/JC8akrFyk0zGsWw4aHvosg1afApcq4/wBnS+jRYn8Dr/mn7FgZ9ytfiVRdtuyzZpgSSVf2D6RXFcRVVSkahCkWRgiSSSVEEuJJKEEr/hzAfGIc7Y7BUC9D4JlblbfkAEjk5OkGxmONyNFhvDTWAWCtGYXbkj4ZdAiPEXnnkcndmz0Vj8HYRsqLAKfwa2sZ0giPu5h+9amSosszRzB2I1luUEIPr/Vn710v6dkcptMXkRjuJuBZRO+WCWJsc73OySyeEWucbuaD+ULk+9rLS8P8Lx09I+lltJ45c6e1w0lwAs076ADXrrovL+J5ZaisqDM6zmSTNaJCQ1kbCcrGjlcAW6k353Wu4NxSpbhtSW3kfT5xTZgXWGQOygcwL3A72XZMyqzRYPwfT0DzKwve97PK572OyMJ1aMoFjpz1VpI5eecDY7Vy1OR8r5o3xve/PY+E4bEG3l10sNNVvHvURaGvch3uTnuUD3KFlFis2Sozf8HN/wCxiEpMbIuLrnE34z/tpf8AzYsu663cTM8cX/Jj5OJTezWzY3cbrlHxVJEbDUdCVkGSFSNcny5LbExwJGtruLZ5BlvlbzAJ19SqZ9c4m91XF6lp2FxslvLoYoFtTV7jp2Tn1DhcqaipLW0RFVS3CX/eW6GPjfZ6FwVWtko4gCLtBa4dwVqJqlvhgXGa40uvDaDEJqW/huLQeXJNqOIaguzmR1z3R5HGUb+zDDBOGVv6PT+IcYihyBzhcuHy7qWjnabuzC1r3uvGq/EHyaucSe5upaHEpQLZ3WHK5SorZpcdGx4hqWvke4fCARdYV7yWqxmq3yNIuhxT2bf0WzOv07XqhWBPs7A/MLKfK4qXw0XHELLFGbo0yirMo1X2GOtZUTVcUJ2XNZrRY1kmiFgsdF2rcuwNBKOAEx80Oiqq6Kwur95A9lS4oftRC0VqSSSgQlxJcUIdW24RqA0BYhFUde+LZI5GLyQpDMcurs9wpqtpA1RJqm9V49BxXIOR90QeLZOhXI/x2SzT5YnptRWtHNZzBZw6vrHDYxR/UIlip+JpXcvrV1wDUl8s7zuYtf2o1u4XFlhlbAlkUtIi41r8L8YiWKSWdthK6BwZl0FmuJIDnW6bbXWk4aq6V9O00oyxAluQ6PY/dwfqfNre9ze+6834nwWWKplc5j3RyyySsewXzZyXZSeRBNvktZwFQSwQyOkBaZXhzWG4cGgWuQdr/cumIT2acMa2+VrW3NzlAFz1Nt1G9yTnqFzlAjj3KB7k57lA5yhCh4hP9Y3/AKef7WlZqQrS43GXyMaNS6GdoHcgKiqcIlGw16c0/FfR/wAiMn+xWNOqMihJXKXDpSfgNup0CvqKiOxBB6W1Q5JuGmXCKkU/gK1w2nygFF1tAWjMWkD0QLKzLoleRsY8aRescALpk09wqc4lfS6Y6t7pcV8hjfxCKw3CqKp+w7q6pcPlmF2tJHbZVOKYZLG7VjvYrbG26RjlQHI9PppN0nYfPbN4UmXrldZcoqSRxsGuv0ANyrVlFvQm7PmUTWfAPkg/o8sLRma4diCFoaTh988TXEkXAIGumi6GXJFcavwIjH52Zl0uoCOjdoosUwp9PIGu1BF2nqiaake5tw15HUNcQuW7UTR9mTarWjOyqmqypTssDNaCapyEbWWKmqjoqiobqjgDMtv6QuhamS4QEbCEQ46JgoUYRTWiyDa6ylFT2VBDZgol177pqhDqkjhLlErbCGAqmy0tgbqNzdUmLSTQi2qzs/leRyUTsKUaIpGLVcAEB8neF19eedv3ALMnVaLgh1pJB/hEf6mlRPZUfZtHPUZcoy9Mc9MCHucoXOTXPUbnKEOucoXOSc5RucqINo6I1FdSRAgGQytudh5bk+wK9ErfwbNcLsn/AKy35TPK4/I3H1rC8MutieHn/FkHvGQveUUc04qosXOKbto8ExbDX0znxSNyuZv06gg9EPRzNuL/ABAG3orf8M2M5axscZaSyFol0Bs8ucQD3AI915jLXy5xIHHMNululuiOeXypNgKPR6N3U1NwR10PovO6qs8zgNg4gel0RWY7O9pb5Wg6EsBDiPUlUpKVQVsKbUHqn+OeqCBTw5WiHsuCOb4EWXYsbt1RGNMY50ANvxgA7i232LzrB+IJoGZGlpbyDxe3pqlW8Rzvc0uLSR8OhGX0AK2cScYy2zNlg2tHo03xfLZB4VTsbJOQBfM3T827bm3zWR/2vqLfDFmtbPldf2vZD4bxBNG9zxlJcfOHXIf66p0csesv+snRm2xmIPgkDvzHEHoQNCtbw/E36PDtfwo8362UXXmFbjkk0YbZrWkXcGX115klaDDOJRFE1ruVhuRyQZsLWFMkX8qLPjaFhkpm6eaQh3p5VNny2AsABoBoAsNxDxE6eVptowHLqdCTv9QRtPxVJlGaONzhoXHMCfWxQZpxeKKsuMH2MAxWNMqxqsabkuUzciWpQvhXKIqinU7bkI4AzApYrFRvVzPTA2QTqXdMdC1sr1xGVFNYXQaosQUzAoU5rioUTFqMo/LqFBSi+6sWsBCBshLNV3HyVZkzuuppSpKVmo6lCmX2b0c8DRWvCjC2V9wReIkXBFxmGo6jQr0rB6OmpIhZrS8gZ3EAucbam/TfRZLFK8S1z7bNpwB212UjkuVGjwuK7MIL0xzlEXppctAseXKMuTS5RucqIOc5Rly4XKMuUIT4VEX1tJlcWkSOIc02c2zbkg+gK3vFuOV8MbjDKSGsJc0Mb4paBdzmm2thqRvoT6ec0lZ4VVTP/wARw/aYR9pC9CdKJQHXII1HqNiO6y5X8zRjx9o2eJVdW6V5e4klxJJJuSTzJ5qLJdbHiDhMOkfJT2ZdxJiOjCTuWHZut/KdBfQgaLKT074nFkjXMcLGzhbTkR1HcaLbjlGS+JjyQlF/IElhVa8K2nOiq5FJgRI10Li61AEHwv0CT3ahQsKlamRKZLdKJ+6jcU2Mo17BZbU1TZoB+Skqqg2HIXQEL/KFLUvuB6rdml+hX4FxXysbnu66PZsq6MaqwZsuc42hyeymIsjqM3IQTzdTUz7ELI0OLKdgIUNK6xUxcCn01NcolpASHyTBR08l7omooboAxll1SkpFLRNUgZSqMqzkeSNAghSPPJGiyFK6n+hv6KRuHuRJA2RQTZUb9L0sE1tCRyTnU5HJVLGwXNHM91NTuIN0O1tkTA1JqmEi5k4iltqUPg1UZJ5HncxkfYp6Dh188fi6lmcsysHm0AJJJ0G+m57It/D7qKYfEY5IiWucQSXA6g2GmhCkVGMjV5Jyjv0E5k0uUeZcLloFDi5NLkwuTC5Qg4uUZK4XJhcoWAYu8gxEbh9x67raYNjzJGgXIdaxbbW6xdcAXwA7GZgIvbQmx15ImWlNNMPM4NOrHgWNiOfK4ulZIp/yMx5HF/g3dRIA0ki3RZPHY/GY5hF3MBfF1a78oDsQNutjyV1SvMjQPNlGuZ/5R7X3P1IKtaQ7NzB1/cs8H1kpGnKu0WjATsKq5QtRi0Ia5w5XuPQ6hZ+Zq6D2rOX6dAgYpWxJ4Cnp7EhCkSyLwiORXLlX8EAKc7D232VuSRdGfN12MK+dh46ISSkARRmrK6gTNlLIdlP9HFkvorjsEyeS40RRIYzqjmuQvhEHZTtY7ofZLvRdFW5hCj8Wy0U9ELLP4hBY6LPaYxposKSTMtFQMGizOFMNlpYTlaCrq9CpFmWAhBVNGLbJv021kWJwQlxx9WEvRVw0YurJlCLbIUS6qxjlNk6SKiwV1EF1tIFO9yaHIUyyB1MEPPTo8uUMztEXZldUZ+qZZNgkFl3FJEFTvNkDVlnpfA1cxrCT+TyNrXuf4IXibGhLLHGDfzPJ7AMcsPHiUkQIafK7cfepsFOeYvN7iNw99/sS1B9rNazR6V9mgzJpcmZk0uWgQPLkwuUJc7t/JTS53ZQslJTCU0E8/qXCVCA9VYvgB28Zlz0F1uZ8BEkYtI45DmYXbtPY6adlhZj54T0mYV6zO97orN5jXrbms2Z00aMKTTKKku1l3AZiBbW4H8906qpwWGw1Pp7oyKnF75h01Gg7Wum11mixO3MH9ySPaPPOJ6dws8bfC7t0+9ZiRegYhEJA9n5wIHryPvZYGcarbincaObnh1nYOVJBumOT4TqmCi/opkc2UKppXo1rkphphhkFlX1RRIch6kKkEmMpY85Vz/Rbj8OvZVOFSAOsTbXS62eFfDutEIpoGRlaqjc1wzNI9QueEVtp6drm+YX9VVPoI7o3F0BZjqnEgFWPfnN0M0X3REYssajQ6UrLbDIrBXOUZVQU09kWcQA5q9gnas2Kmhq9EC+cOThGeSJfkv6LCGS5VrEdFQUum6to5NEUwEgl71HnTC5NulNhpEheoZSn2KaWqrC6lbUUmZOhw7QCyNzAKaOYIlYLCMH4fgnAu278x1cSWHbQNBFhvqb3PIKXH8AhopWGIm0jXh7SbhrgAfL2OvsocJrfBJuT5bkaaEFV+IYu6pqBf4Y2PPzNgPvSYybmaukFC0PLk0uTMyaXLUIHFyYXJpKaSqIPLk0uTSU0lQsZKfNF/wAwfYV7DEyzGjlYD1XjU51Z2ff6ivXqR9wOlgs+b2aMPoIbBYl4uDztz9RzWfxuQOu4XPXcAEeuoWhqpMrb5g025639ViMdqb3PmzHmPK1w7fnBLYyyhxGpINgdT/N1maxmqupX3JPQaepVPWE3WjGqRhzS7Mh8JR5bFFg6IZx8yamKaDaYFGsuoqRHMalSnsbGGiMEpsmqMDFBU2CpMlFY42KuMKxF0ezvkdQs/USgFciqiE6MqAZvBj9xZ2ndqb/SLTqD9Sxn05FsrdE3yaBoo2lPDlDddBWcIJD1xzbqK6kp5NQoQsKKjcNbj0RzrhE0EQcLp9RR36pSy72M8etAEbtVa05CAbQkKwpYSmSyxYKxsJbZPyrnhEJrnWSvIgujHEKJ4Ub51GZVHkRagyOZiYAQnmUKdhCFTkwnFIrKqQplFlDi4hw8pByAOJ35EjtzRtUwFKlptVabTsloGNU3o7TsPbdDy4i1upDvq/erOvodM9tt/suqSOlzkvI0Bs0dT1V+V/YyME1oJZWAi+Vw/WsCpI5MwuAPmf4JMwiaT4WOPyVxRcL1BsSwi3IqnlYXiRVujcNwP2v4KDxDe2X/AFfwWyj4PkdYvcGj3NkbSYDDC8m2Z2UWLuR15KvLILwxMlhmBT1Dm3ZkjvcyPPLsLXK9LhLWCwOwFuaHhtax05XUE5IFwbj11+XRC5OT2EoqKJ62rs07Ac3O0t6LHYzIXaanud3fLkrSreTqSLDe/wAQ+RVHicotYbe9z0ur+wZvQyLD7w+JzcXEegNvuKzlaNTovQGR/wBniA/Rtv6kXP1kqhqqC5KZLMoexOPjSybRji6ygJ1WpnwcHkgZcC6XUhngy58TIgeiJOgufRWLXEImg8OCzLOLvJneG3DS/wCEEruLTNc4sbfxWEgm1mkAai/ZVON7QuLa00Q+MUDXVCb45tfvbZB1Zd0KqKd7JKgCWTUpgkXZIzflfXrrboo/CPUab76aX+5aEIHGRFQk2QeTfUCxtz39uymhksLKEOLt0klRY4FJrkklZDV4FICAtMyFpSSWeUVY6MnQ40jUm04CSSVJUg4sbK0KrqzZJJLhthyK2WpQclSUklpjBCZSZyKQkhWELiupJlUBdnJWuJ2VvhVKSupJbYSLsYaHNLSNHAg+hQmC4SyKRzHgEtOl+bTsV1JKbH4/dGvpmsAFgBp0RL9OSSSuxlbIiCfVBVMZHmtto7lcHb+e66koEmDZiBpYAHW+4+SDqpyb5LHqQRc/LqkkoUUdW93Npb+s5jWeuhv7e6zmIVILsoIJvYloIaB0CSSZH2JyPRoqGsBia24zNBBF9RqbXCHnmSSSuRFGrhTZG2dOMjeiSSwHUKyojk8UPYA0gsyyNcWnKPia8X83suGmeXB5AuZpnuFxo14AH2JJJ6zyqjM+Jjvtv9wRuGPsNvxbri4/GeYD6iEYMONhcC/lDtRtkbc+4I+aSSt8ibAXExxWgGrw627fnpoqCpblJ+fLbQj9ySS14JuXswcrFGK0QEjzajV19QTpr27prQkktJgP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSERIWFRUWFRcYFhcVFRUXFxgXFRgYFxYWGBcYHSggGBomGxUZITEhJSkrLjEuGCAzODMsNygtLisBCgoKDg0OGhAQGzcmHR8tLy0vLS0tLy0tLS0tNS0tLS0tLS0vLS0vLS0tLS0tLS0tKystNS0tLS0tLS0tLS0tLf/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGAQj/xABKEAACAQIDBAUFDAgEBgMAAAABAgMAEQQSIQUGEzEHIkFRYRQycZGyFyMkNFRygZOhsdHSM0JSYnOzwfB0gpLCFiVEU6LhFUNj/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAECAwQF/8QAJhEAAgIBAwQBBQEAAAAAAAAAAAECAxESITEEEzJBYRQiUXGBkf/aAAwDAQACEQMRAD8Ag2lKUApSlAKUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSlAKUpQClKUApVyaB0tnVlzAMuYEXU8mF+Y051boBSlb/dHdeTHyFVOSNdXkPIDuHef77gZSyG8GgpU3YTonwmUfpn/eIP2ZbC30Vd9yvBfsv63/ADVftyKdyJBlKnP3K8D++Ppf81XPclwXe3rf89O1IjuxIIpU7+5Jgu9v/P8APVjF9EGEZepI6N2W5fTmJ09FT2ZDuxIPpW53q3clwE3Cl17VYcmH9/fWmrI0FKVmbHwYmxEMJNhJLGhI7M7Bb/bQGHSp0i6DcKUV2xkgzKp81BzF7a14ehHB/LpPVHUakW0sgylTh7ieE5DGSn0COqH6FcMP+qm/0p+FRqRPbkQlSpoPQ1hvlMv+lPwqg9D2G+Uy+pPwpqRPakQ1SpC326P4sFhmnjmdyGQWYLazlh2DnoKj2pTyUlFxeGKUpUkClKUApSlAKUpQClKUBsdg7Enxkohw6ZnIudQAqiwLMTyAuPXYXNSJu90Z4nC4qGaeOPExqSSkbro2U5Cwly3UNY6XOnKsroFVMuLP6+aIH5tnt9t/VUr0BC/SVujtGV5MfLwWVVF0jdiYo1+eq5wOZI1uTpaoxqdem1JTgUMd+GJgZbX5WIQt+7m+21QVQCpk6JY1XCqex5WZ7n9gMOfYLAeqobqZuigXwsYP7Uv3PWlXkUs4Iy2ltKd55MRPNIuJVz2srIQT1V1ugXkAOXhap+2RtJvJYp8Syxtwo2laTKihiqli97AXY2I01Nq4zae09kriiJZF4qtZn4CuqsulmlyFiRa1xmtbQi1W+lKJ3giCaxoxeQL1rgrZJLi+ZRdut/8AqD21ZLGSrecEgYXbEWKDNFLFIPNPBYMF52zciCdeYHLttW0wb3RSeZUfdUG9HSsMaZoQViEbI3aCWy5Uv2nMA9uwKTU2YBve0+aPurarjBlZyZlLV4Gr29amZFXTvAOFh3trnK38MrG1Q1U1dPHxfD/xT7DVCtcVvkzqr8UK2u6fx7Cf4mH+Ytaqtrun8ewn+Jh/mLWbNVyfRe9m1Xw+EMsYuywwhb65c+ha3he/0CuA2Rted2lDySSpkDZmPmsWUAG/IG7AC+uW9rXt2G9W1FgiDNqODGLd5IsBUdvt+4deEIyAHyggAg2UNawv5w17b+mqLg1axI3E+METwOswLu/mC+ZCGsM3ZapWlavm3ZWKd8WC5v74LaW5NbSvo2RqpM2r3LTtWO71XI1YkslUyaHHdK7XwEvz4faeoPqauk9r4CX58HtPUK1tXwct/kKV0u7W5s+MErB0jESZyHzFmGvmooJsLak2AuL866TCdGb+93KMZIDOAWcWAEZyEBfPPGTTUdbnXTCiUudv2ckrox+f0RtXoFSpiNx3gE2sF4EV2C5iSGDHSyaDqkZjYXIF9azP+B8TmZM8V1WRvObXhycIgdXmWOldK6OGN7F/hg+pl6gQ9SpR2lu5JFEZXZGAkaMqM5PUllhLXK5bF4X0ve1jbWo/24Iw9o7fvW5X8PGqXdKq4a1LPovV1DnLS44NdSlK4zpFKVK+4u5OExMOzHnhv5TiMSkjCWQMwjinZRlFgtjGuoNzbxoDkOjzefyDFB3vwnGSUDU5SbhwO9Tr6LjtqbsTvvs2MKWxkRzcsjF/WEBK/TatIvR5shsXhouGEdxiOJh1xTS9SMHhyl1OZTcDT94jXKa4luixrxyDGxHCthGxT4jhydWNLZgIrZmPWFuXboCACB2u/e/2Fiwrrhpo5ppVKII2VwgYWZ3toLA6A6k20te0C1JC9FDBpi+OiWGOLDTLKUkIeLFM6q2UaqwMZ6ut7jUVk4XoZnaXEJJikRIZViDiN3zs8aSg5R5ihZFuSdDfuvQEXVM/RUp8jRl5rIxt33LjT7Kibbmy3wuIlw8ti8TlSVN1NuTKe4ixHbrUu9Eh+Bf5j7TVpV5GdviR7Nu3iYy8Cw8QE2EugWwJ85ibRHXVWsdKkkBosKqKvEeKFVQaqWaOMKLHmtyunI2NdW+GRjmZFJ7yoJ9ZqryVP2F/0r+FdCrwYuzJxe6GInnjDzxGOQMwAIfVLDWzksoue/Uiu/w+igdwFWEjVeQA9AAq6pq8VhGcnkyVergesUNVYar4Kkc9Ox+D4f8Ain2TWCvRvgi6YniTjZx2c2LZs8ZlEi2vDcJa9mGluYIrK6cW+DwfxT7JrgE33xY2edmBl8nJ/ZOexfiFQ1/Nzdlu01xXebOyrxR1u6u42AmKpPKwmOEhnWHjpFxWxDysqh2Q2ywiI2AuS99BWsxO7KYTbkOGQTIiyxSLxwmey9fzoyVZSVIuPRa4Na7B9IOKjknYxwSJiFiWSCWLPCRAqpFZCbiwUdvYO4Wydi7wz4/bGHxGIYFywUBRlVVVWsqr2Dn6zWL4NVySBv8AyqUSNv1oU8LZe2o9bEqEZFOckKmdipZUDZyi5QAAXsxPPTxN+u6TondYwul4VAPZ6L1wkGHREcnqvkVQuYPmYuGaS4FkUKtgLlrt3XtWPBtPy4K9m248f8Rfvr6Fdq+etkRs08YUE9deXpqe5ZapM1q4ZTM9YE0tVzy1r5paojY5vpGa+Am+fB7T1EuzpVSRWcXA/sG3hUqb+tfZ8/z4PaeohreqTjuvTOLqFl4+DvdlbzGHNwJ1TOAGuFvpcAjOOqQGbUWOprLXfGZSGGLFwbg3j0/RctNP0EWn7nib9WnR1s9ZP/jxhnmn8lSVsR5Vw3Ly5wOFEeoyjhsb62Fr351x2zei6WbAnFriBn4DzCIwyhSqC+UTsAhfwFx421r0X17e7gsnnfRpcSYn33ks4bE5g65G6isSuVksDl6vVdluCCQTWNiukbElsyyuWAABtGo6sglBsF1OdQxJ1Ntb10G1+jOCXFrFhnOHjXBYeZ/e58QzPKzgkBb2HV1uQB67YOE6IppMTicImKj42HeLMpRgDDMFYSg94BN07156is5dZJ8JL+GkemiuW3/Tkdp73YyeNoXl97Zy5VVUXYs7m7AZiM0jta9rsdK0dd/sro08qVJcPjEeEzTxSSGNgIuAjOJGGbVWVQRy89b1wMgAJCm4ubG1rjsNuyuVybeWbpJcFNKUqCRXQ7K31x2HSCOGYKuGd3hHDjOVpVdXNyvWuJG0N+dZO4HkImzYxXd+JCsEa+YzMxBZ/BTkNr63OhrfdK2ISLasUjRLKqwxsY30VrNJo1uzwq2nbJXVvg47ZG8mJwuJOLgkyzNnu2VG/Sed1WBGt+6s/Bb+bQi4OSewgiaFF4cZXhNlLI4K2cHKPOudKkWHHnaGzcW7JDMzRkxYaEIZMPoyqWJsb3XONL6EC97VF+5eGSXHYaORQyNKoZTyIPYalxxj5ClnPwZWK382hJx889+OIlkGSO2WAlolUZeooLE2W17m96yYeknaSySy8dWaZldw0MLLnjVUR1QrZWCoouB2C96kna+6mDyYoTYGKCBIwYsSrgMxyXayjVSraWPPuNR7PuEEwkWJfFoDNEHiiKHO8jKGWJetqeta/o0qZVtEKxM5DGYp5XaSRszuxZmPazG5OlTJ0R/Ev85+9q5Z+jB9Yhi4ji1i4hw4Deby8+9uenLtHZrXV9Ew+BWPYx9pqtXFqSyVsknHY7YVWKpvTNXWcpUTTNVBNVTIVNjz+7wPjUDBUGqoNWPmqoNU5GCP+m1vg8H8U+y1Q7Uv9NPxeD+L/saogrit82ddXihW33QYjHYWxI+ERDTuLqCPRYkVqK3+4TgbQwxYgDiAa95BAHrIFZPg1XJP/k8ciJnUNZRa48BVp9l4f/tL6qrifqr80fdVLy1zno4LaYCBDmSNQRyIAvXss1W5JaxpJKATS1gzSVXLJWJK1SQaXfdv+Xz/AD8P7UlRU0DjKSrDN5twet6O/mPXUo75H4BiPn4f2pK2WFSCXCbOw0ps7xLJA3dJAI2y/wCYMR6Ae21Xi8I57IapHExdI+1oYhh/KGUKuRS0acVUtookZcwFu3n41Yg6QtorGkKzLlSEwC8MJcwsLcMuUzFdBpfsFdlvBsSGbFY3ESxNiGhjhywIzKWzIOsSvW7OzuPOr2wth4bC49ljiN5MHxVVmu0PWCugvrdrjXmMrd9X1GfaeTh16RNogteZWzxRxMGhhZcsJJi6pS2ZSxN7fcKqbpH2nmZxiMrvJHJIyRxKztCFWPOQvWUBR1eR1uNTXR7B3VwTwLPLh3JlnkXh5sQTAodgI7RISzAL+vb0iuK2nhBBjjHhwZMky8NXQ3JuCEZGAJ1OWxAvapTKODSydMN+JIsBio/J5VxGPPv8xskJBLZmjiVQAzI2U258+yuDbDuFDlGCnQMVOUnuB5HlUu7eOJTCSLjQ07TFDIEjPAw0akZiH/a0J0POx8TmbZ4hbaEcoIwi4NTHoMgIRjdNLXBH2L4VXUX7ZCNK9pVzIv7OxXCljltfI6va9r5WDWv2cq6Pb2+hxGOjxqwKpjVV4bkSq2UsTe6jQhiOWnOuUrdbnbHTGYyLDOzKsme5W1xlRnFr6c1qyb4RDS5Z0svSNGonbC4FYJ8QoV5OMXAsCAVjygA6nlpfneuQ2BtPybExYjJn4Thst8t7dl7G3qrv/cxi8u4HFk8n8m4vE6t82fJk5W8a53a248/ls+FwUbzLDkuzFFtnRX6zEhQbk2HhVmp8spFx4Rqd69teW4qTE8Ph8TJ1c2a2RFTzrC98t+XbWdtze1sRDgolj4bYNQFfPmzEBAGy5Rl1jvbXnVk7mY8TDDnDkSlC4UtGMyg2JVs1mt4GsbE7t4qOE4iSEpErmMsxUddWKFQpNyQwI0HYe41X7ty327HWt0mjMcQMEgxjQ8Iz8V8ttDfhWtzAPO+lr2rp+ihvgdzzzN7T1CtTN0VH4EPSfaetK5Ny3KWRSjsdzel6s5qZq6TmNxg0XILgG/O+tWtpWAFlHPnasODFlRa1+6k+LLC1rd9RgtnYovXoNWs1ehqkqcH0zn4ND/G/2NUQ1LfTIfg0P8b/AGNUSVyW+R11+Ira7p/HsJ/iYf5i1qq2u6fx7Cf4mH+YtZM0XJPqyaD0D7qtu9Wg+g9AqhnrnPRKneseR68d6sO1SQeSNWO5qpzVlzUEmo3w+IYj5+H9qSo1faMx4YMrnhforu3vfLzNer5o5dwqSd7/AIhiPn4f2pKiyta+Djv8jaHH4xHGIMk6u4AEhZwWFhYZj5wsBpVUcuNWbiA4gTkXLe+cQryuTzI5Cu33rwzybN2bw0Z7CMdUFtTGoHLxFdZI/wDzhBfUYFvtmH4VOoKv5/BDGH2zi0zlJ5lzEtIVdxdmOrNY8ye3nWFHiHVxIrMHBzBgTmzc7353v21JjHDDYkjcI6uwaxAJnBIWQntUNY27hWJvPu/gIOBDHBK02IEeXK5OXrrnIDGxYgkC+gsPGp1FXB45OLm29i3Uo+JmZWFirSuQQewgnUVal2viGiELTSGIWshdithyGW9rC2lSPi9zsE0WJVYuFJDFnHwjiSA5S1pUF0S+XsJuNdKiypTTIkmuTylKVJQV0O4O0osNj4Z52yxpnzNZmtmjdRooJOpFc9SpTw8kNZWCYB0g4XyfLxTxPK+eR/i3lXFzXy8uHpl5+FY//EuzJMTjpGm1l4fCaRJ2gZREitmhW2YhlI6w7rdtRPSr9xle2iWdp7zbPnxWz5fKzGmGRy+SGVDmHDCxhVUhVNjcC4ygjtFavf8A3owm0cKjpK8c0Uj2gYOVdGawbMFyh8oB56XYa6Ex1Soc2woJCpj6LT8DHpPtvUT7L2fJiJUhiXM7tZR/U9wA1J8Km7drd2XAQiGVlY6m6XtzY21A/apXJKaTJnFuDaN3mpmq1mpmrsychdzUzVazUzUBdzV6GqzmoGoDiemE/Bof43+xqiapg6TNnTYiGNII2kYSZiEBJAysL2HZcj11F+0dh4nDgGfDyxg6AujBb91yLX05Vx2v7jrrT0mvra7qfHsL/iYf5i1roIHdgiKzsdAqgsxPcANTXUbu7sY2PF4aSTCyqi4iEszIwAAkW5PdWbZdJslcNoPQKts1eA6D0VQxrnPQyeMasuararRoQW2NW2q6RVDLQk0293xDEfPw/tSVFlTPjdiSYyCXDRFQ7tCbtewCFyx0B76i/efd6bAzGCcC9rqy3ysp7Rf1EeFa1tcHLennJf2NvfjcKnDhmsgvZWVWAvqbZgba625VZg3nxaTtiRMeMy5S5Ct1dDYAiwHVHIVp6VfCMdTNxg95cVFDJh0k96kzZlKqfPFnsSLrcd1U47eLFTPFJJKS8NuGwVVK2II80C+o7a1NKnAyzpJt+ce+YGYWZSrDhxgMCLG/V1NtL1zdKUwG2+RSlKEClKUApSlAK3mwd1MXjNYYjk/7j9VO39Y+dy5LetHX1LsIg4aJkUKpjQqLcgVBAqk5NcGtUFJ7nK7hbkLgbyMweUixe1go/ZQf1Pdyrf7WxNyF7qycVO6ixjY+IK2++/2Vz5lcu3EQpbzQSpuCT1urcfq1nTmdi+Dqu010v52Mi9eXq3el69Q8XBdvXl6ozV5egwXb15mq3el6DBl4CcLKLm10b71rUdIW9WFhw8mHkOd5kZMiZcyhhYO19AAdRfU9neLkuGkeSMoVVVzF2ZVbusAGB1PhrWHvHudhcZduHwpmvaVARdufXS9muTc9vjXm3td3LPX6fV9PiPyR90Y7fw+DxLPOCOIojD6ZUBNyW0vbQDTx51NmL2gjRqyspDPFYggg5nUCxHO96iHcfcqOZpZMSc6xStFw0Y9d15kkWOXUWtYnw7ZCxWzOrCmHRESKaJuGEUXUSqzFWI5i1zY9nbWdjWo06fUq3ngsqdB6KpavY+Q9FekUBbIqnLWZGEsLgk9vrHj3ffVRRewGgMHh04VZvC7qqENQCrYEuSU+IAv66u767sJtCIBjZ18xx5yE9lv1lPaNOQ7q1u0ZniTPFGZHMkKBAQCc5cHU6DvudNK6XB4hyLcNr+lLeu/3VXLi8mqUZxwQLvDuRjMJdnjzxj/7I+sLa6sOa6DtFvGubr6wIOQ3Ar5Y2i4aWRlGVS7EDuBYkD6BXRCblycFtajwY1KUrQxFKUoBSlKAUpSgFKUoBX07uI+bAYYk394j1PeFANfMVfS3Rw99nYb+CB6rj+lZ2ejanlm4xi6aVzGNc57eH9f/AHXVyP4Xrn9r4Ngc/Os6trEzpu+6po196Xq3el69Q8cuXperd6XoC5emard6XoDKw+2ooOrKVUNyZiAL91zWbi45MThpRs+SPjWBjz8s2o6pta+UtYnS5W+g10eK2Jx2RnuVTXKObE6C/cLVvNm+9kBBbwryrZpW5W6PZqhJ0aXszieiPYOOjkneULHh0d0k4jAk4iK6kKFJNwbhjysdLkC3Y4jeDDRkIrhmZlRVuMxZ2CL1TbtYVrt0toZ4sVkdWHl2KY5f33uO3kRqK8xmxElkjksVaOSN8wAIIR1YgjxA0Poqts8ywieni1BsRai/frVYSr2GgIUA8xzq+sFSRwYqx1dWKspcPV5YKAxFiq6sNZaw1WI6A1WIWxXT9ZfsWX+/pre4BdLmsB8OXcAchYk+IzWH/lW2ia2h0+6qtbmmcRwVbQbLEx7lJ9Qr5OJr6q265XDym2oic+GimvlSt6/ZxXehSlK1MBSlKAUpSgFKUoBSlKAV9I9GEgbZuGPchH+l2B+6vm6voroncHZmH9Eg9Uj1SZpVyzrZEqxPECpq9M1qxpXNqo0dEWc3NgQHtcgH0f1FUyYE6Wc+pfwrPxi6igBrndk17Nu1BrOEa2XDFT5x18F/CseaJlIJY5TZeS6E6A8u+s3FXse8Wt9FY0kJmGXsOl/TTuz/ACSqYfhFaYRv2ifoX8K1OJfEAnhBTlYayMVXsJACi7G2n09vKurjwbqoDSDQAMdFvbme230VXhsJHbzef98+2rOya9lu1WvSPIMSHUWQr/f2iok6RN6cUJpcKFMCA2OU9aRTqpLDkhBvlHeb3qRt4N48NgFLTNdv1IlIMjfR+qPE/byqD959ttjcQ07qEzWAUahVUWAv2nxq9MW92YdTbtpTLWxtszYWTiQOVPaOasP2WXkwqed1tovNhYp5IuGWF8oJIIv1W9BGtjr6a+dqljcHf2Exx4PE2iZFCRy3sjBdFD38w2sL8j4dulsW1lGXT2aZYfB021cdiOKOAihMpzXNpC3YVBGUjw569ltb+DllZA2Y6+A/CtwmHQrdtb9vMfRVqLC8xGwA7Vv9tiNPorlTb2O9pPc1cmImuFEnWOp6q6AfRzP41f48lwM51Pcv4VaxWBZJDITfNa3ZYLoB6L3P0mvIWJJJ9A/r/fhUNtFXFGZeW/6Q29C/hR3kuBxG18F/CrgBtVKr16ankhRRuMBDZay0SsPDsRWVC9dMVsc82YO9EgXCYhuxYZTp4I1fLNfUG+jAYHFE/J5fYavl+tIeznt9ClKVcyFKUoBSlKAUpSgFKUoC7hoGkZUQFmYhVA5kk2Ar6W3Y2acLhYoOfDjAJHax1c+jMWP01837L2lLh5BLC2VxezZVa19DbMCAbdtb8dIu1PlZ+rh/JVJxbNK5qPJ9Au5POrLE1AZ6RNp/Kj9XD+SvD0g7S+VH6uL8lUcGzRWxJ4MPbVSxVA3uh7T+VH6uL8lPdD2n8qP1cX5KzdDZqupivRO7YO5r2LZ4X0VA46RNp/Kj9XF+SvT0ibTP/Vn6uL8lT2GPqkTPvFt/B4IDyiXKzDqqozyHxC2Nh4mwqH98d/Z8Y2SItDCOSqcrP+9IV9m9h4865TF4p5XaSRi7sbszEkk+JNWa1jWomFl8p7ej0mvKUrQxFKUoDY7G23iMK6yQSMpBva90PeGU6MPTUx7sdIeExWVJzwZmsMrD3u/esnZf963drzMF0qsoKRpC2UOD6lmwgPKrI2eF7KgHZ++20II1iixLBF0UEI1h3AspNvCslukXah54s/VxfkrB0HSuqXsnkw9lUcG9QR7oe0/lR+ri/JXnuhbT+VH6uL8lR2GH1MfwT4txV5HI5V8++6DtP5Ufq4vyV6OkPafyo/Vw/krRVtGTtiyfsfBxY3jYdV1ZW+awKn7Ca+ZNrbOfDzSQSCzRsVPj3EeBFj9Nb73RdqfKz9XD+StLtnbM+KcSYh87gWzZUU252OUC/Ptq8YtFLJqXBr6UpVzIUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKA/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhEQERAWFhIVEhIYEhYQFxUREA8QFhUXFhYWGRgdICggGBslGxMXITEhKSkrLi4uGB8zODMtNygtLisBCgoKDg0OGg8QGC0dHSAtLSstKy0tLSstLS0tLS0rLS0wMC0tKy0tLS0rNTUtMS0tODAtKy0tKy0tKy0rNS03N//AABEIAK4BIgMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgIDBAUHAQj/xABWEAACAQIDAgULCxEHBQEAAAAAAQIDEQQSIQUxBhNBUWEHFCIzcYGRkrGy0RUXIzJTVHJzhJPSFiQ0NUJSVWN0lKGjtMLT4eNDYoKDs8HwREV1ovEl/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAEDAgQF/8QAHBEBAQACAwEBAAAAAAAAAAAAAAECEQMhMRJB/9oADAMBAAIRAxEAPwDuIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANTiqrnVqQc5KnTjT7GDdNznPM23JdlZJRsk1vle+lrHE0+et+cYj6ZxeTGXVXTelmrioReVt3te0VKTS6bLQ1HFU+et+cYj6ZgyrZVLK3bjH7aUpy0jHfKTbffYnJL4aSPryH97xJ+g967h/e8SfoIp12+c867fOXa/KV9dw/veJP0B4yHO/Fn6CJ9dvnZj47EOUVHM7SqUIvXfGVaEZLvptDZpMJ7UpRV3Jpc7hNLyFv1aw/uv6Jeghn1H4LPrs/CuGurhmqPTS91q73u2y8uBuzvwfh/moegfR8petr0H/arv3R76rUPdYkR+orZ/4Ow/zUPQarA8DaXXGJ47ZuCWF7DrZwpLjW7dln0H0fLofqtQ91iPVah7rEh/1G7O/B+H+ah6CmfAnBXjl2dhbX7LNTinbT2um/fv6B9HynEMXCWil4U0vC0XzlW0+DNPDYbF4lYPDYerSw7qUJYS6qwrRVRyTlaN42VPk1vK63HVSyuQAFAAAAAAAAAAAAAAAAAAAAAAAAAAAcU6p21sRR2niqdLEVacFsuVXLTnKEeOhnyzsnq0cvXC3aHv/EfOz9J0TqsfbbFf+GqfvnJKFRxcZLerNXSevcZNQbf6rNoe/wDEfOz9JOdncOauH2fGVSm60oKjKU51Gp1XXqVk7vK7WVKKW/lOXzld3JJiftbP4OB/1MUNQSBdVZv/AKL9f/SPfXUfvL9f/SOc4aUV7ZXVny2s+R97mErXdt3JcaXbo3rqP3l+v/pGy4N8O+vcTRw/W2TNUpSzcbxlstWD3cWvKcpm1pZEp6nDXqhh/hx8+A0m30LUVRWcaWda37JQa5t+8u8dUTiuI7F2vLPHsOfTlL1SlGStJX3rvPRkZ4T8KcJsmOXLmqyWZUqbvOS3KU5O+Vab3duzsnqZzr1prfiTUJyaTnDLLW6zZuXTWxXCLZwnaHVe2hOT4qFClHkWSVSVumUnZ+BGXs/q14mCSr4OlU3XlTlOi+7Z5lcssW4129pblK7tfmVi3NPn5eT0nPOD/VSwuMrwhNOhJu0VVsoSd7JZ4ve9NP8A4dExMkrSlPwWsdXWnHbScNftfjre9a3mMl6Ihw1a9T8drf61rWtzZGS9FxSgAKgAAAAAAAAAAAAAAAAAAAAAAAAAAIDwl4K4bGYrE1qsZOoqVGleM5wTozU3KLUWrpmh9bLZ3uEvnKn0iZ03fEbR+Ow1uj63i/8AcvWDPK3aCvqY7O9wl85V+kXl1MMNWw84KrUhTk6UVGDi3BUZVWrSkm3d1XvvuJm0Zeye0/5k/KyVcLuuWvqN4Rf2+J8al/DHrPYT3bE+PR/hHUpxKHEm2jmHrP4T3bE+PR/hGRs3qd4fAVaWJp1K0pRq0IpVJU3C061OL0UE+XnOjNGBtntcfj8L+0UhsV8JdsRwVCdaWr3U4vTPUe5fou+hM+fds4mdWdSrUlnq1JZpSfO9yXMklu6EdI6tWLssFTvdOVWVvvrKKj5z8JzqnQzq/Ta/SzDO9vZw49NO8O2noWJUHzEnnh9yS/mXMJsx1ZqnGN5vRLm6XzHEza3jRnC7JqV3kpwcpW3RV7R53zI7X1Ma+KlQng8ZHNHD5eKnJqUuLle1OXPbK7PmduRFOz9iwwVFpK83rNxV3KXoPOBO1M+MrUlTkoypXb9tHNGWl2t2kn4UdYZ25aZcvHJhv9SThdK2Axq5Hhq3e7BkxqYiEUnKcUnuzNK/cIdwv+wsZ+TVvMZa2lhcRXm1TztRUdFK0Y3V9Ls9TxJxSqxkrxkmueLTVyswNiYSVGlGMn2WjfQ2lddO4zwAAAAAAAAAAAAAAAAAAAAAAAAAAA0FaadbFJPWPW6l0SySdvBJeEoLFL7J2j8dhv2eBkBll6pZmbKXsP8Ajn5WYbMvZD9h/wAyp5WSusPVUyhlyZbZy1Us1+2u1x+Pwv7RSNgzW7dlaknzVsM/BiKZRzfqpVo1cTTjftMLf4pPN5HHwEMeJlDSK5bR+E978vgMjaWOdWpKpN3c5uTfS5amJPHp05SaWZ1LrnWj3eE8lu30McdTTpOy9jUKlGgsqkp0rzlZZsztd5rXVnfS6tutobXY+xqeFk4w3b23vd1or98hPAnaNRVOJz+xzTdnrZ3u7Pk073QdMhqrvfZXtysz120t1GBtmk5R0V1yrkfd5zW8DIdbwbivu5qS+6cW7vuvRPvdJu8TuZpNjLNWjReZqc5zmk5U1lUXZ30zK+XRXfeO8bd9OMpPm7b/AIWVE8Bi5Rd08NVafOnBm9wkstSKjuvbvPQ0PCuCjgcXFJKKwtVJLRJKDskSvZ+CSUZt3bSa6Lr9J7Y+bWeACoAAAAAAAAAAAAAAAAAAAAAAAAAACMQptYjHtrSVXDOPSuIUfLF+AvFVbt2K+T+ZIpDLL14zK2R2n/MqeczFZmbL7Svhz85krrD17MtsuTLbOWrGry1SvZWb0drvmvyGu23O+HfxuHWut7V6ept5K+9eE1XCN+w2/GYfvez0yjhWCwTxFWlQppznJ2io2vKWr5dy3u70SVyYYHqTYmV51KtKnJJuMeyqKU+lq2VdOvcJD1GdiRpYTrmdJcdVqVMs5Ls+IVopLmTlGT6dN9kT2GIi3a9nzPR/zMphP16M+a71HK9kcEcThq0KlWMHTSks1KanHMtGnuad0+TkZK60nFXiSGphIwblCF1N+yQjZQm29ZtW9t08ul2t5G60HKs8KtOyeZ8qpLe13VZJ88kZ58er07w5vqd/iiji3UjfiqmXdmUJSi+40i/sXDezTqODsoWi5prLJvXLfla3v0m+jFJJJWSSSS3JLRJHp3jxyXbLLmtmtNRwu+wsZ+TVvMZM8N7SHwY+QhXC/wCwcb+TVvMZOUbYsK9AB0gAAAAAAAAAAAAAAAAAAAAAAAAAANBW7divk/mTKT2v27FfJ/NmeBll6pZmbL7Svhz85mGzN2X2lfDn5zJXWHpMtsuTLbOWqlml2870m/xuH/16ZuKu5mn23rSst/G4f/XpganqZbch6nN1qsUsPKalffChdODaWtuyaXctyEn2q05YVr3xGz6Mk2RnqZ7Bjh6KnVguuKi7JSSbo03up9DtbN06bkidumTGXXbrks+rpblJJNtpJb29ElztkNwGNm8XUrqnnpzp2zciUZ6RT52svi8hKcdVUbRkk0+fW7MSo21ZWtyWW4vzupMtSxmYarCpHNFact0k0+Yu5IvkRrdnvJK25S8v/PKbToYsI0PDWilgMa172reYyZIiPDX7X478lr+YyXI6jmvQAVAAAAAAAAAAAAAAAAAAAAAAAAAAAR+v2/FfJ/NmUlVft+J+T+bMpDLL14zM2X2lfDn5zMNmZsvtK+HPzmSusPXsy2y7MtTOWqzVd+55TW7X9rH47C/tFM2suU1e2F2Efj8L+0UyoprVeKfGKWW3O+xkuZkhwWIVSnGpF3UldcvK9CJbaptuMsudJTTiuRtKz/QbTg3TlClObjljOonCH3qSUW++1+gD3hBUhdRzxUkoSUcyzb2np3Gn3irDzWW73fdX5Ok0G0tlVlOtF0XLNUco1d6UW76y+55NO6ZuJozqUHGOsuxUk9M7i9V37FGfxkJp5Jxkk98WpWfeMqnj4RiuMnGLvbs2o5vCaXZWDk6rnxTpRVPLaWjnLTW3eevcKMbSy1XOeH46LjFJJuORp3fI9H/uKM7ho/8A8/HW5cNWtzNcWyXogG1aMobIxUZvslhcRpvy3jJ28DRP0IV6ACoAAAAAAAAAAAAAAAAAAAAAAAAAACP4jt+J+T+bMoK8U/ZsT8n82ZZzBll6qZm7K7Svhz8rNe5mdsqXsK+HPysldYerky1NaFyUihyOWrClX3/8d1vKNs0FxMJN9k6+EduRJ4ikX8Vhoz1d0+eOj/ma3a9GUYQlxl7VcMrNWv7PTsXY1nCHGyo1FRjHNN5nq8sIwjFScm7Pke5L+eBV6oFSCdF4OMXHsWnUleLi7Way700STbuAhiJ0XPMmp2jKnJ06kMyV7SW7RGO+AODer4293e9TV69waRo59Umck08JHVWfsj+iYNHhvOOb63i7u/t2rPxSSfULgozcZcYlvi3US08Bq8fwWwlOooqUsra/tFfXvdDL2LHrhz0+tY/OP6JXS4aVa8ssMJHNlk+2PdGLk/ud7tZc7aXKbGnwJwj908degtYrgjhIJuPGLR/d8jVmt3M2h2LGM2r1zs7aFRJpda1HZ65ZZKievLu3nU0ciqwjDZ201FWisLUsv8FT9L/3OuIQr0AFQAAAAAAAAAAAAAAAAAAAAAAAAAAGn2psupOpxlKpFZoRjUjUi2pZHJwkmn2LWeSejvpusYfqPifvqP6wkgCaiNeo+J++o/rC7Q2fi4Rcb0Wr3WtSLT5dbPQkABJIjj2fjPxPj1PoHnqbjOej48/oEkBNLtGnszGfifHmv3C3iNiYmpHJPiXFuLaU5r2rUlrk50uQlIGhzGt1NcS28u1cco3vGKxUmocyTcb6bjz1ucb+GMf+dy+idPBRy59TfGP/ALvju/i5fRLc+pli5WctqYx23XxTbX/odVAHLl1NsZybWx353L6BRPqZYt79q4193FN/uHVABzHZnUslCadbHYmpSunOlUruVOpbdmjkWbf3t504AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBUPEBAPEA8PEA8QDxAPDw8PEBAQFREXFhUVFRYYHSggGBonHRUVITEhJSorLi4uFx8zODMuNygtLisBCgoKDg0OGxAQGy0fHx8uLTAtLS0tKy0rLS0tLS0tLS0tLS0wNy0rKy0tLy0tLS0tLS0rLS0tLy0rLS8tKystLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAABQMEBgIHAQj/xABNEAABAwEEBAcLCAcHBQAAAAABAAIDEQQFEiEGMVFxEyJBYXKxsgcUIyQyM3OBkbPRNFJUoaLBwtIWQmKCk5ThFRclU4OS8ERjtPHz/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAECAwQF/8QAJxEBAAIBAwIGAgMAAAAAAAAAAAECEQMhMRIyBBQiUWFxQfATI0L/2gAMAwEAAhEDEQA/APcUIQgFHaJmxsdI8hrGNLnOOoNAqSpFQvhmJjWHU6RpPOGVkp9gIFEFvtVqcTG7vWEHijA18zuliqG7gKjarjLJMP8AqZTUUzwZc44qiuDzddpJVuJz5RjDuDi/VdhDnvHzhXJrdmRrryUiDvOb6VL9j8qO85vpMv2PypZPpNYWP4M3kA6tNdmIrsrgomVXEBzbQ9zTmCGwEH7Ckfe85vpM32Pyr53pN9Jl+x+VQvtskWbjwsY8vigSNHK4UydTZSvPyFmHAioNQRUEaiFAo97TfSZfsflXw2eb6TL7WflV4qC0yYWOd81jnexpKDzbTTugy2OYWSzOtFonNSaYaABxaaHDtDhWh1HVrSqHuh31rNmZrrR9pZnvwii60isTY7ZLQZhsMQOshjI2gCu+p5yVmrSy1d8tLK8DiaScTeD4OgxNLa1xVrnQ6xsV4rsrMtMe6FfP0eH+Z/oj+8G+fo8X8z/RUEKeiDK67ug31TKzwg8lbRUezJRfp/f3+TZv4jvzKuhOiDKx+n9/f5Vm/iu/Mu4+6Bfn60EB2YZi3rJVRCdEGV7+8G+fo8X8yPgj+8G+fo8X8yPgqKE6IMr7u6FfNAO9osq5i0iprtRY+67b7NI3v6yngHEBzg5jw3c5gy9ddyLout9ofRuTR5b+QfErTXjozZG2ZwlbVpFHYjm4FWjSyzvrRV6HdtuZaImzRkljxyihBBoWkchBBHqVlZvQWMMs+AEuAERqeXiBlfXgB9a0iwmMNghCEAhCEAhCEAqd5amdJ/uZFcVK89TOk/3MiBRdRpZnEawx5H+0pT3Tbc+G742R1aJnxxOIypGY3OIG/CBuJTS6/kr/AEcnZKuaQXMy22Q2d+WJrS1w1tcACCFaJxKJ4fnSOziRsjpHujIaHWejQYpCHYXMJ1tfqIXoHccvWR8c1me4uZC48GSa4QCBT6/qCRW/uX3gJSGNjcK04UOaMtuZyXoGheizbtgLS4OmkoZHDyQBqaCdes5/BaXtE8KUrMcvtx34+0z2uJzGtFjtHAsLcVXNq4cavLxa5fOG86e6fMR8zAPUMlRkFOQip2UqVdunzEfR+9Z5aLRVW3+ak9FJ2CrJVW3+ak9FJ2Cg8y0v+WzdIdkJOnGl/wAtm6Q7ISdaRwpIQhCkCEIQCEIQCs2CyOmeGN9Z2BQwRF7g1us+wDaeZaa54mtOBuoZOdyuPL/z+q009Obb/hnqX6YaO5LE2Noa0cVv2jtS/Ti0UjazaSTuCeWV7Q2lQsTprbg6bADUNaB6+VaaUZ1M+zizmW70HPgB6KH8S0izWg3ydvoofxLSrit3S9OvAQhCqkIQhAIQhAKlempvSf7mRXVRvXyW9J/uZECW6fkr/Rydkp7JM1keN7g1rWAuc4gAADMkpDcp8Uf6OTslIe6/bJGWCJjKhssjBJTlaGF1D+8Gq2MyiU1r7pd2tfg4R7hWmNsbyz20zHPqTuC2xzxiWJ4fG8Va5pqF+b4Y43l/CEiraxOa7MPFPLGw5j/0vQe4vbZCJ4SSY20e3YHVAy31KvamFa2y9OnlrQUpQ111Jyps3q5dPmI+j96S2SaVzpBLEI2tkLYiHh/CR8jyB5O7/hc3T5iPo/eVmusuVW3+ak9FJ2CrJVW3+ak9HJ2CpHmml/y2bpDshJ040u+WzdIdkJOtI4UkIQhSBCEIBdRxlxwtFSeRfYYy9wa3WTQJxDG2PIes8rjz/BbaWlOpLPU1IpDmNrYGawXOpU/DmCI7a1upyr2uJ0hqcgNSILGAvQrTpjEcOK1ureTBlue7UXU3pbeNixcYa1fa2i6U4hnE4nMN7oMKWdo2RQ/iWkWf0Q82ehF+JaBeHful61eICEIVVghCEAhCEAqN7eS3pP8AcyK8ll+ShrWA1q6RwbSlK8E8mvqBQJ7jPibvRydkq7ftzRWyy97y1wlraOGtrgMiFRuA+Ju9HJ2SmtvtUcUJmldgjiZwj3EmjWhtSctakeNW3uR2rhKMmgMZPlOL2mm0jDrW70V0aju6DgmHG9xxSyEUxHkAHIBU+0qto/pxY7fM6zMbNFIGkxiag4ZjaVLaE5gAVBXzSzSWzWBzA9s008tMEMObyMda5mgq45cpplqVt5RtB+VfunzDOj95WduO2wWiFtogLix4w0eTiYWmhY4E5OBqCtFdXmI+gFCVhyrW7zb/AEcnZKsOKq27zUno5OwUHm2l3y2bpDshJ040u+WzdIdkJOtI4UkIQm12XE+0WeWZjxjhcA2LDxpeKXOwmusNa40pnRSFKFdsF3GaOaRpNYGxuDA3EZC+QMoM8tdeVP7muPgxwrxiko4sGtjHBpIz5TWn3bVatZsra2CRo73bmPDyDUdcbOfnPw51PZIDrdrK4bAS8ufUvJzrtV6JpzoDRvlUBy37F6VKdFcQ8/UvNpy+StACgDlYmNRtrkOc7FRxLSsbM6wshy+1UDM05u+6S6j5dXIz4qLTFeVorMziGw0Q82ehH+JaBItG5G4pIwKYWxuyphwl0gAH+0p6vDt3S9avEBCEKqQhCEAhCEAlOkERLY3ClGSuJqc6GGRuXrITZLr882Ol+ByBRoiK2YVzBFCo74sTZbM+xWnhOCezg2zRhzuIPJJIBwuFBWuRpz0HWhh8WanysPJNE9CYrHau+p7ZHO6LGLM1jSxrQ8EFz6/rUNKDLMqzpto0LbI2ez2psE7WCJxdUtdGHFwpTNrgSSCP6r1EuXJKmJmJyjEYwxOjNyd7QCzQF73Oc58k7mlrMbvKfnr1ZAV1Cu1a6KMMa1jfJY0NG4CilcVw4qEuXFVLcfBP9HJ2CrDil98nxeb0MvYKDAaXfLZekOyEnTjS75bN0h2Qk60jhSQnt3Wh8VhfJGS2RluszmEaw4RSU37uVIlqdELvL2Okke8WdszA2NgBL5w00dU6g0E+s8ynGUZw01zXOwtlnYBELU2MyMrxYHh7TIwc1akbwORM7RM1koYDMaOpwTWNLXN+aAXAUpzc6Uz3i1rAI3kQ4zE5jqB4cBiBNNYO3mXF42ydsWuQRltA4tIBB5A6mrmqto0pZdbm1QgSstRFWWeOThK8r4acDU7XB8XsKr2u2NjENLRaYsUMcvgY2lskj83vJ4QYnF1QQRyUTMXJLPAwGR0eONhlYWEAltcNRtAA9gSWwsnigxGd8AbO6MscwEt8GHVjDhUOJPJTatadMxzx++zKYxylvW3Pjhk73a+Eut7mkUa2SMd7Mc4ChOHPYdWSz1msTpHUAJPKBybzyJ+6yOwBro5I4S8yAPxF0khFC97zrcQOTJXbEGsGFoAHMta3ilduVJjqn4Q3ddDY+M6jn/U3cr7mqQL7Rc82mZzK8REbQuaORESyvywlkTeeofKT2gn6TaP65N7et6crhnl2xwEIQoSEIQgEIQgEm0lcQIsznM6uevxeU57dScpLpPqh9M//AMeVAs0JPijU/JWd0HPibE/qrD6SuSUErglAEqNxX1xUbig+OKX3ufF5fQy9gq45yoXsfAS+hl7BQYbS75bN0h2Qk6b6XfLZukOyEvFjlIqIpCNojfTqWscKTKOCIvcGNFXOIAXpNwWZ0UR4JwLGDA9haDXKoe4c5qsvcdh4IcK8eEcOKDrY0/eer1pxZLeYZA8EgEFpoaZFdFNKenLG94ysRRQzcHPJEyHDa4mEtBbHM0mp4pyyIFSMqEqOO2gyzMcy1veGTcO2R8QYG0NSchQDIjcKJLPPLI8mSR8hBI47i6grqFdSgt1snNI3TSuiyox0jy3LVkSuj+GWNdSOGsuy2SCWyNq4tlsrA4kkgmsp9vFC4uHjxxcLU0trvL+d3sMNa/tUWVgtcgDWiSQNY7ExuN2FjtrRXI5nMbU3sb3vBLnvdV2I4nOdV1KVNeWgArzKltLET++5a+8fvsdwvFJRhtDiWO4ThXMoHcjj+0DRUGuUr5pHDC573NGoOcSFwGKtYwmZyt2eWuSt05UsYKKe32jBCXctKKtq5nYyZaMyVmlzNDHAQK5ZyTZ09i0SyuhZq5522ezduZapcN4xaXbXiAhCFVIQhCAQhCASy/mAsbUA4XPI5jwMmpM0uvzzY3v9zIgzmgp8TZ6+taAlZzQY+JR+vrT4uVh2XLguXJcuC5B05yU2nSCxxktfa7MxzSQ5rp42lpBoQQTkmLnLIPndHYbZNHwYkimvGQOkYHgYJHnVtyyrkgY3ppRZLPKyKSeFrnk4y6aNvAt4Mva59TkHUAB2uCu20h0T+Vron6jrBYeUJVeD4jNYjIwukkfJwbm4Q0P70e5xeKZjCHADbRMrWeI/0b+yUHb7sh4Z82EGVziS450plls1JmyNuHUFSkdxzvPWrsfkg7cit/8AMOLObSp2izNdyBLLZdVRxTQ7DqT4tG1cujV66k14VmnsxEkZa4gihGsfeorRHibUaxmtTet3424mjjt1c42LONFDlup9y7dPU6oywtE1kujCf3MRQjlFClMsWE1GoqzYZ8DgeQ5FXvGY2aRbiT4oVc2kL4LQFz9Mr5WwqukDqWY9IKVkqr6Q5wAftBRWPVBM7Sf6EtHBYqCpihBPLQYyB9Z9q0qzmhQ8EehF+JaNedful3V4gIQhVSEIQgEIQgEuvzzY3v8AcyJil1+ebG9/uZEGV0Hd4lH+91lPS5Z3Qh3iMf73aKelysOy5cFy4Llw5yDpzlnv7ItLMYitjGRySzS4H2NstOEeXEVLxUZp25yjc5AiFzWl08M09sZK2zPkeyNlkbDVz4XR5uDzlR55ORNbU7iP6D+yV05yr2l3Ed0H9kogwnPHd0j1q7GeIPWl9oPhDvPWr8ObQNi6J7YcMd9nyq6a5clhX1rCoW3SDNZq/wCx8HIHjyZKnc4a/j7VpmhUL9hxwu2s449Wv6qrTSt02Reuakk9kxxCZoqDxZAP1XbdyWSMp9Sb3Xewga5rmYw/krQbFBHZuFJeRhadTQuqtprM54c/PBbwxC+stBV21XbTMJa6OhW0TWyZzBjBaFZvg1gB/aCURvom0rsdkdtaQs7RiYlaLZiWm0M82ehF+JaJZzQvzZ6EX4lo15F+6Xo14gIQhVWCEIQCEIQCXX55sb3+5kTFLr882N7/AHMiDFaEO8Ri3O7RTwvWc0If4jFuf2ynZerITF6jc9ROeuHPQSOeo3PUbnqJz0EjnqvaHcV3Qf2SvjnqGZ/Fd0H9koHU48I7pHrViCSign8s7z1rtpXVHbDzp2vP2s8IV2HKsCpWlVmF4sna5czNBBG0Ee1fAUEqF8sPO2lBsqDvBTa531bTYqF4to942SO+s1U91yALvtvVy02sbyMqEjvGGhT9rwQlN561npziWmpwUhqv3easlZtjJ9YzVctVm6R4SnzmPHtaVtedmNZ3azQ3yHdGL8S0Sz2h/kO6Mf4loV49+6XrV7YCEIVVghCEAhCEAl1+ebG9/uZExS2/fNje/wBzIg870Ik8Qh3P945OzIszoRJ4hDuf7xydmRWQsGRcOkUBkUbpEE7pFE56hdIo3SIJXSKGV/Fd0XdkqN0ihfJkei7qKDYT+Ud56yuAV9tB4x3nrUYK66x6YebefVP2nDlI0qu0qVpSYIlZaV0omFSLOWsMpfLfCP6TT9kKtCCr97trK793qXMUa7q29MOaZ3SwSFQWp1SrTWqtaGqsTuWnZWKmuh3h285ooniiq2K0YbQzpDrWmM1lSnLfaKCgeOUYB9bk/STR0UdMP2m9p6drx7cvYrxAQhChYIQhAIQhAJZf/mhvf7mRM0r0iPgfW/3L0Hk2g8v+Hw9F/vHJ2ZVltBpf8Pg6L/eOTsyqyFsyrh0qqGVcGVBadKonSqs6VRulQWXSKMya+i7qVZ0q4EnUepB6DaDxzvPWuAUWk8d289ajBXbWPTDytSfXP2mBUjXKuCuwUwRK0xykxqq1y+ueq4XixXa24pX82HsoYwosz8Tnu2u6sh9QU+JbTONnPad3IaVDMM1ZxKlapQKlK5mUZyrWl1EilkIlDtjm9avSzkqnIzNdUVxDWkYepaNuqZTtLD9bk8Wf0SNWv3RfiWgXh25l61eICEIUJCEIQCEIQCU6THwPrf7p6bJPpSfAet3unoPENC5KWCEcz/eOTkyrNaISUsUW5/vHJsZVKFwyrh0qpmVcGVSLbpVG6VVTKuDKgtGVcslz9R6lUMqIpM/ag9StZ47t561GCi2u8I7eetRgrvpHph42pPrn7lOCpAoGlSNKSRKUKteE+BhPKchvKnqkVvmD5Kk8SMlo53cvwU0rmV1uzDCwD1qWqpd8Ltsy0mss5hac+gSi2S1Ks2qegSKS1VOWpWpHTuvSqwvjm8uxRtlXcsowE81FtW2V8PSNEfJfuj/EtCs7ocasfuj/ABLRLw790vTrxAQhCqsEIQgEIQgEl0sPi53u909Okk0v+THe73T0H580XkpZItz/AHjkzMqR6OP8Vj3P7bkwMilCyZVyZFWMi5L1IsGVcGVVy9cl6CcyLuzv4wzVMvXdndxgg9etx8I7eetRtK6tx8I7pFRtXo07Y+nh6k/2W+5TNKlCiapVEphBb58DMvKdxW7zy+rX6kia0E5eSzIc7uUqe+7TxsI1jiN6TtZ9lFzFDhaAORbUjENY2h8XwPXT2nkVdrX4s9S0S4vGQkBo/WKqOshAqmphBcD83rUrmgiipMJ6sEGpczAkK1aYqFRYVaKT+FsvTNBTWInayLqctOsxoKPBEbGxfiWnXjX7pelXiAhCFVIQhCAQhCASPTLKyudyNcK/vAs63BPFBbrIyaN0LxVkjS122h5RzoPyxcVWwNadbTI07xI5Xi9am8u5ra7NNIGYpbPI90kcjI3PLS41Ic1tSBy1pltOtVf0NtP/ACOb8qlDPl65Llof0MtO0fw5vyr4dC7TtH8Ob8qkZ0uXJctK/Qe1ClSMwCOJKcjuauf0ItR/+c35UGaLl1DIA4E6uVaI6D2rbT/Tm/KgaC2ogmoo2leJLy6ssOaDZR3kyWaWMEY4yxxFczHIwOa8c2ZHqVtq86vDQ68A+O0QyyttETBFijZKaxg5VFKnXQjOtNSvQx6RgU8A6nK+BzXHeA0dS6aa8RXEvP1fB2m82rPLfNXT3hrS46mgk7gFhAdI9ll/gv8AguZhpE9paRZaHXSJ+3crfz0RHhL/AAYWd5ktFTnhDnHeTn1p0GrFQ3Nf7KyAWfM0JwO169VFOLNpFss5/wBJ/wAFp5qny0t4e0y1rgAl9ptuAjikjbqSI2TSH5tm/gv+Cj/sq/5HAYbMTyVjcB9YTzVPk8tZqDaWDWVIyQHUQVjv7Jv75tnO+N/wXwXRfw1CAbo3/BW81p/KPK2aW3spnX1KlJK1jS95wsaC5zjkABrKUuuy/wA6xAaf9t/wXEegF9Xi9sdoeWw4gXcQxRAbcwMW+jiE87WI2ytXw1vy9g7nc3CWcyUIxCLI8lWY6ex4WrS+4bqZZIGQNJdhHGeRQvedZpybAOQABMF5sznd2hCEKAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhB//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8SEBAPDxAPDw8PDxAPDxAPDw8PDw8PFREWFhURFRUYHSsgGBolHhUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQFy0dHR0rLS0tLS0rLS0tLSsrLS0tLS0rLSstLS0tLS0tLS0tLS0tLS0rKystLS0tKy0tLS0tLf/AABEIAQIAxAMBEQACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAADAQIEBQYHAAj/xABXEAABAwIBBQoGDAsGBAcAAAABAAIDBBEFBhIhMVEHEyIyQWFxdLGzM3KBkaGyFCM0NVJUc3WUtNHSQkNTYmOCkqLBwtMVFkSTw/AkxOHxFyVVZIOEo//EABsBAAIDAQEBAAAAAAAAAAAAAAABAgMEBQYH/8QANREAAgECBAQEBAYCAgMAAAAAAAECAxEEITFxEjJBUQUTImEUUqHwM0KBkbHBI9EkgmLh8f/aAAwDAQACEQMRAD8A1mWOUddJWnDsPzm71EHyvZmiSR5/AD3C0bBoBdrueS2myMVa7JWio8UilpsEylDeFV0V/wA+qxR7vKQbKXly7GZ4iPQL/Y2Unxyg/wA/FPvI8uQvPj7kUUeURc+MVlF7WQCd+xK17A6OFzqfw87J5ZieIilfMc7Ccoj/AIyjHRPig/mS8iXsVrGwv1+g04NlF8dpPpOK/eR5EvYl8VH3+gGTC8oBrrKXyVWLffUlhpvsSWJi+/0AGgx/45T/AEvFvvqXwk/Yl5y9/oCfTY8P8XB9Mxf+omsHP2H5qf2gTmY4P8XD9Mxb+on8FPuiSlfqNE2Nj/EwHpq8X/qo+Dn7E+G/Ua+uxsC3siDR/wC6xb+qj4OfsPy33I8mM4038dD9Lxb+qoSw04roWRw8pfmLHBK/GpHjNqIeXgtq8Q3wnkDRLIWHT8LQskqiUrNFs8DVjHiTv97FnjO6HWsZFHFIM/PfG+R0TM4ljy1xNgASHBw0ADRflspJXdrZGW/p9zD1uU2KMkL4a+sa4k515nOa47cw8EeQKTiKMrokUe6nj0XGnjqBsmp4u2MNKjwjuXlHu5VzfD0NPLzxSSwehwelYZe0W7rRnw9FVxH9E6GZo57ktPoSAv6LddwSS16l8JPJNTztt0uDS0edAGhocrsMmIENfRyOOpoqIs/9m90AXLXAi4IIOog3CAFQB5AHkAYTJaMGpxSU8c1Tob67MbLK4D970BaI9Cqvy2NArTDYRzgBc6ANJOwIsFimwgFzN8OuVzpDzZxJt6VrqWTt2KKrbsizbGqHIcKVkIWIuT4SNPGpxkWxiYDCsGxVuJyzTSE0hdMbmfPjkjdnb1GyG/ALbsubDinSb6aqamp3ZofDwmmqIVuUiCRWVDFO5fEhuRcvSBOakTSIdTAotXLIuzBYRI6OoiI/KN7VysXQ6o6dKpeDiylxXwdHzsLvKaiZKK9J5/rLdlJiDuFYAuc54axrRdznE6GgcpSbsEdCqmqnNcWkAltr2ztBtcjSL3Go6NYOvWlmMb7OHK0j/fOgBfZMZ/7IAcI43arHoSsguNfRtKOEdxabfYjnQTSwu2xSPiPnaQlYLlzR5b41D4PEakjZK8VHehyVh3Lui3ZMajtvhpagDXvsGa4jpjc0DzJWGdtyCyqZidE2razenZ7opY87ODJW2uAeUEFp8qQFTkp4TE+vy+u9aI9CqtoXqtMZCxqS1PLbW5uYOl5DP5lZRV5ojLQLRQ5rGjYAEVJXZGMbyuSQ1V3L+EQtRcaiBkYpJk1EjujVikOxFmhUlIaRWVlMrVMsiinljsVO5oQzNRckMkiRcZEhp/bYz+kb2hVVY3iXwnZGaxPwdH8l/rzLnrQ5nVlX7Ga+fh3s12aACW8JzJHA3GnRvXpUXqOLyK7HYiwCQhwM/DiIsRJwjvmnWCCQlJkkiBTQ3Y973HQAW3F9PK2+u+lvkvzXSYmR3N5lJgIw5pDthURlm19wDtF0xDHJAgT0hgXoGdl3Dqt7MPqA02Br5D5d4gUWM12SnhMT6/L67lfHpsV1tC+urDGV+M6Wxt+HPGPNd38quoczfZMjLoWLG6FU2WU45DgEi2x4hIaQxwUh2AvammOwB7VK5JIjyxAqSkTSKevo+UK2MiyLK7MVlywXMSuAyGH21njt7UpPIktDD4pxKT5P/mJlzloYe5XweGd8pH3NUkwj0KOoYXThr372xzXZj35xZGHP0u0cxafMoS5iUXZAxPvWiOz2SkNBkGnQeNbbpOg/C0pO18gztmRKt9r6tdhyD0JsEBeHDQ8AEjOFjyc4SuSLRg0DoUiI1xSBAXFIYJ5SGde3FvcE/XpO4hSYza5KH2zE+vy+u5Xx6EKuheKwy2IWJ8an6wO6kVtL8239oi1mi1sqbl8YngEDseIQMaQi47A3hSGgDwmSQIhMkR5orppkkVFVTWNwroyLEyLmqVyQsDPbGeO3tUZPIZzzFOJSfJn6xMsK0MPcr6fwzvlI+5qkmEehXY0S+OK7ne0wsMLWtGt+bn3Ou1hq5ulRkiSZTUbA4lznaWAloA0Z3k1f72WUUhslU00ccjZJYt+YzO4FyDnZvBeLbHZpsdBFwpXs7kWrqxBrKnfXZ/B03c4NbmhhtYNHNs5glKXE7koqysWDdQ6EdBDHoBAnJDAuKQzr+4r7gn69J3EKTGbXJTwmJ9fl9Zyvj0IVdC8UzPYh4nqhd8GojPnDm/zK2lq17Ctmi4toVBosJZAWPWQA0hO4xjgi40gEgUkySAkJjGEIGR54rqSkSRVTw2VqZNMHTt9sZ47e1DeQznOLsIZSX5YiR0eyJ1jWhiXUrKfwzvlI+5qkmEehDqmne43DNv7HgdZxIu0stcbdW3zobJpXIUUT3Nc5292bazmu0HkN7nbbz+aJG60IkxABJ0W1pMlYhukaQc1K6GWLdQ6EyIx5QCAuKQwTikM7BuK+4J+uydxCkxm0yVPtmJ9fl9Zyvj0FPQvLqZnsRMVF4nfmlj/2XtPYCrKT9QNFrTuu0HmVL1LrD7JDPICwhCB2GkIADK1STGRnBSJIaUDGuCAIdREppkkQY2WkZ47e1SbyJnL8U4lL4h+sTrMuUxLqV9P4Z/ykfc1Siwj0I2LCaUU9NHpDc5kQNgGMY0G5PLobfl1C3IlLNk4P/HcbR0zWZzM/fBm2doOaZQ0OPCOzSNHRpsnHJlVXNX7FcWs3+MSWzN8de+kZ2Y7N186gy1DsqY4hIDGeG6ScSAag0ZubbmvnJMaAt1DoUloRBuKBgXFIYNxSA7BuK+4J+uydxCkxmzyV4+J9fl9Zy0R6CkXikU2GTMzmub8Jrm+cWTTs7hYPhct2N5wPIo1FmXLQmFQARAHigY1MBjwgZFkCmiQIoAaSmMDIUwIDuOzxm9ql0JnK8VHBpgORh19Ym+1ULQx21KqOojZM7fHZoJDwTq4DJWkH/N9Cixx0BVNQRBTvaWxOip4fbGucJXvc1rQNGwDtSfckrWsyFh3FdmubZjTYZ2g7eYnTr5+dJMTVyPLFn8HXfbzDX6EMaIlRRlgLjc3sM5zrlRsMkA6B0KRFgnlIYJxQMG5IDsO4p7gn67J3EKTGbLJU8PE+vy+s5aI9BS0Lu6mVipBYSkNnObtOe3oJ0+m/nCJZq5OPYsQVUSPEpgNc5AA3SBOwwMk4UrAkRX1ITsTSYMzBA+Fg3Spj4QEsqZJRID5eGzx29qbeRNQyOZ4rxafxD38ypWhgfUoq9js7PYc2SOQPjdscNIUWgjoVwnkYMwR3Zawa7hW+EAQOLe5AOq9tOtIYMVNvxRb0f9krjGGsGuzgehp/ilcYOSUv4IF7m54IFvKgCQ7m1JkQLykME5AwbkgOxbinuCfrsncQpMZscluPifX5fWctEemwPQugplYt0gGSA6HN4zTccl9rfL22QiSyJIqgW5w/6g8oPOo2zJkGXGWt0Eq1UrhZkaXHWbQn5diSptkV+ON2+lVylGJfHDSZHkxW/Ks8sVCJphhGDbXX5Vjnj0aY4QlQzXUFj0Dw9g5KujjEyt0CNPIrPiUSVArt/G+M8dvaovEot8j0swGItAbT22OPnqJj/Fa4cp5x6sp6njO8ZMUdCOUhjCEgBuCABOQME9RAA9IYIpDBuQB2TcU9wT9dk7iFIZsMluPifzhL6zlpj02G9C6UisVIDyTGCljOkt0347fhc45+1FycXYyWUNG8cNly038h2HYU/NaNlOKkY+oqJAdZUnJSLVFxYAYi8cpWOtSbNlGqk8yTFih2rkVqUkdalwSJsGJHaudUi0avJTLekxLnWZ3RTPDlk3EBZThVkjK6BCrMQG1aoVZEo0Spjrbyx6fxje1Xxk20TnC0GZ3EeLTeJ/rSr0cOU8TLVlRU8Z3SmRjoRiVEYwlAA3IAE4pDAuKQIC9IYJyQwbkAdl3FPcE/XZO4hSGa/Jc8PFOvy+s5aYq9gnJRV27FjNiMDOPNG3peFojh6stIswyx2HX509s/4IMuVWHt41XAP/kCn8HW+USx9J6KT/6sNh2P0c5LYJ45S3WGOziOmyhPDVI6r6lkcXBvRrdMtAVncWjRGSegKena6+rTr5Wu5iP46+xQfuXwm4mRxzJu93Rix0ks/iDyhUtuOaOlSqxnkzF1uHuaSCLIVdMudHsVz4nBRm4yRZT44MfFK4LnVqUeh1sPXl1JsVWQubOmdBNNEluMW1qtUSuUEBlxIO5VdGFipofQSAyx2/KN7VZHmRXUXoZX1fgqTk9rPn9kT3XpYcqPBPWW5UVXGd4yYo6EYlRGMJQANxQMG4pABcUhgXJADKQwZQB2XcU9wT9dk7iFIZo8DwiOokxPfS+wr5BZr3MB4TjyFbaVadO3CRqU4SXqVy3p8mKBliKaEkcrmBzvOVOVerLWTK4xhHRJFhHTQs4sbG9DWhUNSfUtjNDKqGN4IAYHW0HNbcKHqi7lqszFQYVUvnliLywjSwsJaCOjUqa/iFWk0lmgVCn1RMpsMxAG0VSC8a2yjSPKFSvFnJ2lBMs8iMc0wsmM1tPwa6lLo7232PhDpuNStWJoz09L9yUaV9GSX0tNWMz4nBxtp1B7fGHL09qpq0b5p2ZrpYidLKWhna3J1zTquNo1Ll161SlzI61KtTmQxgd+Rc6eP9zWpRQjsnzyLO8bcujXigf913OU44uT0QPFU1qSafIRxGc4hjRrc45rR5StHmztd5bmafiFJZRV2V82I0lPLHDRn2ROZGg1FvaYtOuP4bufUFpw9CU5KU3l27mavWrTg7rhXYp63wdKBfwfKbnTPMdJ5V6aPKeRazZT1Z4TulAloRSUhjHFAwbihgCcVEATigYFyQDCkMGUgOzbinuCfrsncQoGa3JaSz8U+cJe0rXTjdoz4mrwRLR9UtapHHlj7EWesKsjRRnl4jLoUmI1MutjiCFfHDwkrNFlLxWaZTw5YSRSN9kNvmnRINYGw8y5eP8ADHa8T0OGxsKyszYVE/smEVlA4Olj0uYDwnDZZeblTalmdGnJRdpaMm5O5SQ1Td7kAbLqcx3LttfsViVspBVoOHqjoR8Wyb3t3sij4DxpLG6M7bb7FJOVPR5F1GvGa4an7hcOrWTt0i0jRw28vSObm5PMToUo1I2ZGpSlRd1oMqaVocwADhuLdlrNLuToWR+DU6zbjZW++gnjpwsnncx78tKVr3sdDK1zCQQ/MF+ixKpl4FUhUUbRs+ub/wBGinilUpuV7NdOpDfugvzs2CljaSCQ+V5fYbc0AdvIszw8oX9f7K383OlTwPG4qTeauUWNY3V1OieUln5NvAj8w1+W6UIRi+LV93m/vY6VPCU6XKiBhsHt8Xyje1aYT9RGvSXAw9dxKb5P/WlXoYcp4GWrKWsPCd0pkVoRSVEkDJQANxSAE4pAgbikMEUAMckMGUgOz7inuCfrsncQoGjS5Onh4p1+b1nLfQ1RyfFZWj+hNJW9HmHJsG8KSIkWaO6sTsNGfxjDGvB0LRGSaszdh60oPIylJXVeHTCWncQAdLDcseNhC43iHhql6onqMJjFJWZvaOemxVpqaIiDEGAOnps4NMhH4bTt5/PtXnmnTfBNffsdijW4cnmi+wDKc33iruyRpzc9wzdI5Hj8EpOPDms0TqYdP1QC5SUZic2th1tdeQDU5p16BrBHpAKz1b07VI/f/wBL8JPzE6M/0PS1jHxwzxkFglab67XzmEeQmy6+CqKd7dUc/E0nB8L1TMrlbkaJZN+jsL6To8qq8RxlSjSsle+WxswFOjKopVOhnKbAy1r5iLDRGy+vNbrPlJK8vUxaclD9z0tOpF1XYr5orFWxkbrD8MZ7fF8o3tV1N+pFNZeh7AKw3jpTtYfrEy9RDkPnLecilrTwndKCMdCI4pEgZKQA3FADLE6ACTsAuUhg5AQbEEcxFkgBFIYNyAGpAdm3FPcE3XZO4hQSRpsnePivzhL6zlvoao4/i69P6E4reeXsMITJWBPCkh2IdRHdWRkWxRn8Ww8OB0K9NNWZvw9RxZh6mGamlE9O90UjDdrmmxB+xcbH4JNXsejw2IujpmTWUVNi7RFNm02KRttcaGVAHLz9GsLz0lKk7fb3OrSquOazXVdiwFTUQB1NMDmWtmu0gDa07Fnqx4k+HL2OjCMJtTX7/wCynwGpzKieicfa6kGSnJ1MnaNXQQ1p6WfnKzw+vwNJ9B+I0eOPmI2dNUZ0QuOSzgdYI0EFdDFtKMkzlU45pkbKLDxvQLBwSL2HIvF4vDeXUVSOkjp4Gv67M5vWwWJV1OV0eohK6AYc32+L5RvatdJ+pCrfhvYr6rwdL8m76xMvVw5EfNHrLcpK08N3SgFoRCVEYxxQANxSHYlwODGNPK9wB6CfsQAlSQ9sm1h4PkAv/FAFUVEYMoYDSkB2jcU9wT9dk7iFBJGkyb4+K/OEva5b6GqOR4tyrYnkLeeZSGkIJDHBSTJIjyNUkyaRAqo1bFmimjMYxRAg6E6iUo2OthpWMRVRPhkEsTiyRjs5rm6CCF5zFUVdpndpSazR2fIjKeHFYBDUZoq4wAbkAvO0Hb28q5EoWfC9ejNqbgvNp6dV2KvKzA5YLTMznCNwc1zRZ7XA3tp1O5RfRexWWfFCd2dbD14V4cPXsXuD4g2aNszbWltngamy2FyNgdoO3SL6SVunN1KXujnSp+XO3Q0dOBJCWHSW6FyKTVak6b1RVO8KnEjn+UWG5riQFginF2PS4KvxRVygomWni+Ub2rXRfqRvrfhvYp6ziUviO+sTL18eRHzV6y3KOuPDd0pMS0IhKiMGSgEMJQMkxkOaL6QBby/77UAelIa1xHK0g852+koArHKIwZSAQoA7RuJn/gJ+uydxCgkjSZMcfFfnCXtct9DVHJ8V5VsWJW483YaUySQxyZJIC8JosiiJO1WJmiESmr4rgqXFkdLDxMhi1Je65GLV2d6gsigpqmalmbPCS1zTyaiNhXIq01NWZrhJ05XWnU71kllJBilOAS1tRm5rg+xz/wA14/isnN/jnzdH3HUpuk1Vpcv8GLqqo4VXmGcFlFVG13aWwSk3Bv8AANz5ydqlQjJXXVF1XExqJN9f5N5QVmY4XNweW+sdP8f9nm4uhOjU+Ioq6/Mv7QnHiXCxmUFIJBns031hZZTp1fXB6mjB1HTfDIxnsAiaM2/GN7VKllNHc89Om17GOq+JTeI76xMvYx5EfP3rLdlHXnhu6UmC0IZKiSsMJQAxxQAjZCNX/RIBsspdr8wQMA5IBpSAagDtO4n7gn67J3EKBo0mTHHxb5xm7St9HVHL8V5VsWRW655wYUEkhhTJpAnqRdGJGmCdzXTgVdW1KUjq0IFBXw3uuZiGdqjEzmIUd76FzZGrgK7C8QmopxNCSLEZzb2DhfUqKtNVFbqKEnTfdPVHbh7Fx/Di0hpnazRfQ7OA1E8hv5j0qunKUvS+eP1RRXpKk7rOEvoYrIjFZIZHYTVk75CHexXu0GSJt7xG/K2x0bAR+CFa/UuJE6UnF8Ev090bqKrLdB0t9IXIxXhkKjc6T4JfR7r+zSgsMMT3tItfOBty69i5ieIoVEq0OuqzRb5rUWcertVOOZ/1mZe7hyI811kUNeeG7pUWC0IZKRIaSgBhKQDCUAMcUhjCgBpSARAHadxP3BN12TuIUDRo8l+Pi3zjN2lb6OqOX4ryrYsytp55DSmSihhCC6MQbwnc1U6ZGmCXEdCjTK6oaqpzOpRplVUxLnVZXOpSiVFVTrFI1JFHXUd7qu4pQuWGQOLyUVQS08BxBzeS+rsWHFtxanHVGrC4RVoSpy06Go3V8OEjKfFqPgvJ3wFtrsqYxctPjNafLF+ctVGtGolNdddzj1KU6bdKXNDTYssGxJtTTxVDbASsBLQb5rxoe3yOBHkTkrOxrpy4o3J1MfbGeO3tSRKXKzllaeDT+K/6zMurHlR535ihxA8N3SoMcdCISkSBkpANJQA0pDGOKAGFADSkAiAO1bifvfN12TuIUEjRZK8fFvnGbtK30dUczxRXiti1sthwYwPFqLl8aYwtRxGmFIG4JNm2nSIsoUHI30oEGZqzzkdCnEgTsWObNsCuqIllkXxKuqhVMmWpXKaQZr7rNVV0bcLLgkb/ACRqBU081A9wAnbnQk6QyoZwmO84Cw0KjpVeHpL+Q8Xw6aVeK012KvIO8baukcC009RnBh1xtkHg/IWO8t12pO8UziUVaTj+pq6XwjPHb2qtamiXKzlladEHiv8ArEy6keVHm1+YosRPDd0qLJR0IRKiMaSgYwlAhCUhgygBpSARACIA7VuKe983XZO5hTJmjySHDxb5ym7SttLVbGDHxulsXOatVzkxpjSEXNEYDSErmmEAL1Fs1wiRZAoNmyESHKFnmzZBEKZqzSZpiQpmLPIuiVtUxZ5F8SgrmaVU0XRdmTsArjG9rgbFrgR0hc7E03qjrwtVpOLNXVtDcWfKwWjxGhZVN0aBKx4a9vTcvJ6V1qE/Mo8Wx5NQdOrwPpdf6Lal8Izx29qFqXy5WcqrDog6H/WJl1Y8qPOfNuUWI8d3SoscdCGSojGkpANQMa4oAYUANKQCIA8gDtW4p73zddk7mFBM0mR3Hxb5zm7St1PVbGXFq6WxdkK850YjSEXL4xBuRc0RQB6iaYIjSquTNUERJVnkaYkSULPI0RIkzVRIviV1SxUMuiUddGqy1FS55abqEqfEX0q7gza01YJIMNnvwqesfSu+TqoiG35t8Z+8lgXZzpGHxOHDXjVWkrP9dP4ZpqXwjPHb2q5PMrksmcorDog6H/WJV148qPM/NuUeJcd3SoslHQhlRGNKQDSUDGFADShgIkAiAEQB2vcU975uuydzCgmaXI3j4t85zdpW2HTYoxSyWxeFXmFIY5BdFAnJF8UAkUWaYIjSKqTNMURpFRJl8SLIFRI0RIkrVRIuiQZ2qplsSqq4lWyxFNWU+tMiyXhNWW0lWy/FbHOzx4ZWyN9UjyrOnwYmL7l2Jp+bhL9Ys6LRuBfGRqLmkdB1LQ1aVvcw3vC/scnrPxPQ/wCsSrrrlR5pfm3KTEuO7pUHqSjoQiojEQMYSgBqAGlIBEAIgDxQB2vcU975uuydzCgkaTIwjPxe3/qk/aVth02K8SslsXpVxjSBuQWxQJyRfFAHqLZpiiO9UyZoiiO9USZfFEd4WeTL0RpGqqRaiHMxVssTIE8SiTTK2qg0IGVRBEVSB+Rk9UrLP8WG5ugv+LV2Z0LJObPgo3a/a42k7SzgH0tK1VOfez+hxqb/AMe119TmlZ+J/X7+VdZcqPO/NuUuJcd3SoS1HHQhKIxpKBjSgBpQwEKQCIARAHkAdr3E/e+brsncwoJF/kJxsZ+dqn1itsdVshYrSOxoirjFFA3ILooC9RbNEUAeq5M0xQB6okzRFAXhUSZckAeFSy1AJAoMmiLI1VliI0kaCRXVbNCrkyyJQzAZk+zepL/slZJv/JHdHSpr/j1Nn/Bq9zOfOpYR+TmLT+sRJ/qLoV1nF/eTZ52jK8ZLb6pMwtYdMX6/fyrprlRwV+bcpcS47ulQlqOOhCJUSQwoARADSkAiAEQB5AHkAdr3E/e+brsncwoJF/kHxsZ+d6n1itsdVsGJ0WxoirTIkCek2XwQF6g2aYRAuVMpGiKAuVEmXpAnhVNliAuCqZYgLwosmgD2KJK5HkakySKnEDYFUSZfFGbqH+1VB/RP9UrPrVjudO/DhKj9n/BotyV3tb27JoXeeJrf5FvrPKO7/o83TVr+8Y/xb+jH1Z0x/r9/IuouVHB+bcpsT456VCWo46EElRJCFADShgIUgEQAiAPIA8gZ2rcT975uuydzCgZocg+NjPzvU+sVsjqtiWIXLsaJwVlzPGIF6i5GmEQLlTKRoigLlS5FyQJyqbLUDcFWySAuCiWIG5qiSBPCTGiJOq5MtiZ3GJbAqhmiJnql3/DTna0jzqqH48To1brBT2NVuSM4D3bZIR5gftC11Xml7v8Ao89FZf8AVf2YuqPCj6X99IutHRHnu+5T4nxz0qMtSUdCCVEYiAEKQDUAeQAiAPIGISgDte4n73zddk7iFAGiyB42M/O9T6xWtdNi6qr8Oxo3ptkIxAPVTkaIxAuCrky5IC5VNk0DcFWTBOCiyaBuCiSBkJEkBkUGySK6sfYFVSZfFGQxqbWqy5FZV+5XDbYedwVVP8ZHRxGWCa7m93LqbNpY3flZy/yANZbzsK0VH6kcDRP76HOavjs6X99IuytEed77lTinHPSoy1HHQgKIxEMBCkAhQAhQB5AxCgBEAds3E/e+brsncQoA0WQPGxn53qfWK0vpsaZdNjSPUWwigD1W2WoC5VssQFwUGTQNygTBFRZJDHBJkgblFsaIs7lW2WxKXEpdBVLZfBGKxWW7k0id8wVYfamN2uv5Gi/2KqkvW2dHFfgRj3/rM7Bk7Q7zFTQ8sbIw7x9b/wB4lTbvM4Lfpb7nGayQl7Lm9nPA1at+kXcWiPO99yoxTjnpUXqOOhBURiFIBCgBqAPIA8gY0oA8kB23cRH/AJfN12TuIUxo0GQDhn40OUYtUEjYC5wHYVpl02NL6bGleqmxoC5QZYgLlBliBOUGSQJygyaBlRJA3KLZJAJCotkkiBUvVUmXRRnsWmsCoFyyMbVSXd5VO2Qou8i5yaot/rII7XZGQ5+zNbw3A9Oa1v66qhkr/fsa8dU9NvZL9839Edepxw2+MO1QjzI5U+VnBKnjt8eQf/q9egjojzvfcrMU456VGWo46EBQGIgBEAIgDyBiXQAlkAFpaWSVwZEx8rzqbG1z3HyN0oA+ltxvJWWkw3Nq2OimnnfUb26wdGwsYxocOQ2Ze2sX06UgKnFqKfC6+sqmszqOseJ3OJIju5+dKxzvwHgl5bfXnAC+kC+MrpLsXKd0htRug0zCRJBUNIOsBrmHna7URzpWXcmpohybp2HjQRK07DmA9qTiu5JVEDO6bh36Tzs+1R4I/MSVaIw7pWHbZPOxLyl8w/PiN/8AEfDtsn7qXkr5iSxMRp3RcO2yfupeRH5h/ExBu3QsP+G7zD7VH4dfMiSxUAD8vaE6nFReG/8AJfUksZAhT5Z0h1SN8pd91VvCP519Sax1NdCkr8fgfqlj87/upfCP5kSfiEOxSyVTM6++REbA51/S1N4Z25kRh4hCMr2LrJHLOlo3Svlilke8ZrTHvdgC67tJPLaP9lVywreSYqviUZ2yfV/q/wD0bHDd0uCV43umn4OnOkdGyMHkBcCdPMoxwbvdsonjlw5ROe1MLmyZjjw9+kez9JG53GbtGg6ufYujGXQ58o2V11K3FAC67dN9OjToQyK0IcNNI8hrGl7jqa3hOPkGlKwXLqhyIxWbwdDVHndBJG39p4A9KBl/QbjuNScaCOAfpp4h6GFxSyAvqHcFrDbf6ymi2iNks/pOYi4zQUW4JRC2/VlTIeXemRRDzOD0AX9FuO4HHbOglmI5ZamYX6QwtHoSA0FFkThMVjHh9GCNTjTxvcP1nAlAF5FC1osxrWjY0Bo8wQA9ACEIAgvwWkcbupaZxOsmCInsRcLif2HR/Fab/Ii+xO4XPf2HR/FKX6PF9iVwuJ/YVF8Upfo8X2J3YXFGBUXxSl+jxfYi7C4hwGi+KUv0eL7EXYXPf2BQ/FKX6PD9iLhc8MBohqpKUf8A14fsRcLif3fofidJ9Gh+6lcLif3eoPidJ9Gh+6i4XPf3doPiVJ9Gh+6gLif3coPiVH9Gh+6gB0eT1C05zaOkaRqIpoQR5c1AEiuoYZWZssUUrW6WtkjY9rSNIIBGi1ggDL4Nk7QPmfJJRUj5L3z300Ln323LboA10FOxgsxjGDYxoaPQgAiAPIA8gDyAPIA8gDyAPIA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSEhIVFRUVFRUXFhcVFxUWFhcVFRcXFxUXFRUYHSggGBolHRUXITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQFy0lHR0tLSstLS0tLS0tLS0tLS0rLSsrLS4tLS0tLS0tLTUtLS0tLS0vNy0vLS0tLTctLystN//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAABAAIEBQYHAwj/xABSEAABAwICBAgHCgoKAQUAAAABAAIDBBESIQUGMUEHEyJRYXGBsTJyc5GSstEUFyMzUlSCoeHwJDRCU3STs8HC0hYlNUNEYmODhKIVCEWUw/H/xAAZAQEBAQEBAQAAAAAAAAAAAAAAAgEDBAX/xAAoEQEBAAMAAQMCBQUAAAAAAAAAAQIRMQMSIWFB8AQTUYGxBSIycbL/2gAMAwEAAhEDEQA/AOgUzCHuf7oaHyVBdKRa7YBi4tjHFlze0QO4cqy845qstbiq4wTJieQcsFmizORsuTl0N6VkKPTsj2sx1AabRkjiIW5l3LseKsMILbXO2/MvOHT8riWmbCxsTXA8VCPhLgtA+CBIFhcL6P5GXx9/s8P52Pz9/u32sGlcD3NxgObYkcaW4QRkXADYevnVNq1rC9jZOPmc4kueMPwwY3Y1pcCbDkk7d6o5dYpnSY31LrNx4TxcLnZGUZhrLG7WR2v+cFkZtYpLYjUvLmOOENjgzAix3yjtm8YRfZkbLn4/weON3d2/79v+Xqz/AKhvw3x44yb1769/b9zNcawmpxtNg9rXWy3jL2diOiJ4zH8IKUm5zmq3Qvtu+DDTl07VJ0TpiR8LJJpZBI7EXYaWCTMOIGbrFuQGQy86l/8Ak/8AWm/+FTLy/ifNPT+VMfeXvs+h/T/wusp5sspZlOf3T+IbJjezDEyHGX1rW2ZCQRFxfFhr3tscibE7bi6cKljHUgHFyNfUP4zHDE2QRGRkDYpGhgwva+Zt7AeBzI6UpYuM5IMrHxF7vhS20srm8aA1rrRuIa02ANs9ybQRQySRianADyS+SSbG+Nzg2fG1x8F3GDDccw2WUPJl1vdEfEReIFMCh6J+Ij8QKWtQF0LpFAlAiqXSNs8lcOKpdJHJVGKv3IHFSG0RAyKNKc1bRRLWKUgtXoyoIU+amVfLTEI1K922F8zsAA2kk2DR0kkDtTZq4Nk4p8shlABcynjD2xg7Mb3NNz5iduFQRLgc15Fwx7XEDM2BzsN5tc9YTquhkbI+SKNszJXmVpwmRj8bALOwm4ItkTla3ZlbE6l0o1z3su5wZgAfxb24nOBPFhtrueAATh59gIKlmRpIBD23yGNrmg9FyLX6NqqamEOq46YWix03GSCM2c17HNtgIOT8zY8zTtUekc4UVW4MqY8MJe0TyGQh7Wvc05i7ZAQCczuzWbNJEj8LoMTyRNDK83DcnMdCGhga25vxpFszsXhpCMgXcx7Qd7mOA6LkjLtsvSduOSgZe3GU9QMXybGnfdvM7k5cxsdydoiHKpaWVQZxUrT7olMgcQbXIcOS45kWJy27k2aZ2duQcWuDXXwuLSAbbbG2Z6NqL6dwLgWPBjaHvBY4FrDis52WQ5Ls+gq81XnY2FrqhzBFJJFxPGC96nMl0fNmPOHHLO8bRLHwVDnTnFI95ZUkjJwksAQPzY5FuZoPSq2zSlkicA5wa4tY3E8gEhrc83EbBkfMV5Eq80vRGCBtGSC+olcXEZn3LARhuen4MEc8jlXzUy2XbLENJenElJax0DROlBI0Zq3BC5fQVronXGzePYtxovSYeAb7lFipVyqfTeslNSPYyZxDpGvc2zS7kx2xZjIeEMt6tmuuuY8Lv4xS+RqfWhUtXzuEnRu97/1TvYm++Voz5b/1T/YuFV0+EdKqYNMHGGvAsTa4uLdeaN0+ivfL0b8t/wCqf7EffK0Z8t/6p3sXB6icMtfadgTKSrbJe2RBsQdyGnfPfM0d+cf+remnhM0d+ck/VPXDCmoO6e+Zo784/wDVvR98rR351/6ty4VdFpTZp9G6H1hp6syCBxcY8GK7SPDBLbE5HwT5l4aTKyXBGc6vqp+6VavSaqMqNSHPsV3TKgpDylb4jZrWmxe8NvkcORJPNezTbdey2sia5qjSQquNW3jXxmOYFri3Fx54x1vy2wuNnM3i17825MZWSYfh45iT4DIuSXXO2WRpAY4C1wCBttivZuSt09Z6ZV0tKRfC+RgO3i5JIwekhhAv07VOq5CyLjY2vaQ8RvikeXjE6waWvJJ2lu+1icgQvMSRFwaYahwu1rpXOdFZziAMMYcLgE7h6W9s0raeiYy+EEEnEXYnGQu2BxkviLum6eaNrsWN8zsYwuxTzm7c+SRj8HM5dKkSQFsssV8XFubZ2Vy1zQ4YrZXzIy27d6j1UQZDBKL45KmWN13OILG8fYBt8ItgbsG5buMS4qSLFiIcSGlrbvkc1oJaSGNLrMza08m2wKLV0zbk8ZOSQW51E/gm12jl7DYX57L1jgDm1BJdeOnL2YXObZ1n58kjF4I23GSgywOfBRujuZaiaVjuUbEBszsg44RYR32blm4PCGiZdo5RDGlrGue97WNIAIY1xIaLADJThQ8ovcJZQ5pa5pmfiIvkAXkgCxcLXHhJaXoH00oADnRyPYyJxMeIyOB5JAtbZtI7VJfO6FrnSxPYxjmtc44bAuAItY8scoZtvnltBW7hqvMxyyyvqJgGuc1rI2A4hHE25zdvc4kknqGdkyWBXD4ZbX4iS23Ix3t4odc9W3oUQAOAc03BFwVs0yqviPvZJWHFJIxlVK0fXmI9G9RECVo6JovSQcBmsNwuvvPS+Rqe+FHR1eYz/lVZwjVfGS0x5oaj6zEoyisa5jpdjrXAuLWNu9U7GvneLg7ruN92WZ7PqV5pGqwDLab9iq4NLuDrPAsTa9rEKVrCu0c+ctbHm+9g2xOK+4W3oUOjHQFzZAQ+9nNIIw23EHrUuLSjqZ7ZmEh7TdtrHPYcjusSO1Mk0wap75nm73HlXAGdrDIZWsB5kYcSm3SuhdAUgU26F0HXOCHbV9VP6sq1WlHLJcEBzq+qn7pFqtLuyP371WLKi0juUrWdwwhtgS9wa27sADtoJeByTcZEZ3sAqSjfmr+EBwsQCDkQRcEdI3qqmFC2oLhHKwyRk2eJWRmw5xI02Pa256F4aGe6fjWxutFHK9gkvicWixDY77fC8I7rWvtBfomE5EPwbMGN/F28nfDbsVZU6R0a12E1ETSMiGSFuwWzwG17ADsUaVuPeuMgLXzQvip4Xji2AseXPccLXyEPJJJdkM83EknaLOqgnY0SNh42W/IjDmtZH/ne5xGMjo6hbNyzr9I6MO2pjcOZ0r3DLZkTZE6U0b86b+uk/mQ9UWOjqYgyCTEZi4OlLsNyXAWthJAbYAAbg1GoojLEI2ZyQVDpcFwC9j+MzbfyhHWwhQqXTuj474KmO7tpLy4m2QuTmjU6foH2xVMRIvYh9nC+3C4Zt7CjNx7VTDT09RJIMJli4mJhIL3PIfbIE73DqDSSqfTbMNDQ3/JqZL9GHjrnoUmPSmjmux+6I3PAsHPkMjh0Bz7kBV1dpOiJu2eO4uRyiQCdpDdgJuc+lDcWmsdE4aRjmcw4HyUjY35EYg8XaM7g2BOxM0xaSvmEjsmSQRx4s2xteyIuc1pyveRxv1XyCoIJopCA2XHgza3jHEMtvY0nk26LKzpYWjFtOLwi4lxdlbMuuTkLdi2Q2vtGaMbFW2jonNDSRx5lku4FnhEWwOFzhw36bZLx0c/OYHdU1A7ONeqs0rSRcvOHwQZJLN3cgYuTkSMtyl0uFgwtyzJ23uTmSSdpzSTRbta5feyShcf0pKksqghdK61hyzuszvhY/JS97VobrOazn4WPyUve1TlxWPWJ0vA5wuBfKxA29arIYJJHAOBsDm5wse0naVb11XgyG059QVdFpRwdys278rEXUOidX07nAFhsR02+sJmjaQxgl1rnm2ABTCULowULoEoXQG6BKF00lB1vggd+N/8AH9WRanS5yKynA+fxv/j+rItNph2RVYpyRKN3KWipjkstRnlLSUZVVMU3CJVvjonYCRicxjiNzHbc+nIdq53qzBSlkr6oAtY6ED4y+F5fjwBjhd1mixOQ3rsFbSslY6ORocxws4Hf2jPtWMl4NoCSWzyAbgWtcR25KLCz3UbNXKeXiyyRzAWRYwXNJu+DjCW7Te4sRbflaydFqxTNlax0zn2eA4AsaHBzqhjcJvcG8DT9NW/vZxfOX+g32o+9lF84f6Dfamma+FBDq1BhDnTOHIDv7vl3bG48XnsaXlhvndvWF5O0LAypZHj4xjmTEBzmsxSxPmjZGXg2aHuibnfY/tWj97OL5w/0G+1H3s4vnD/Qb7VmjV/RS1GrtOXtDpBEXOgZha7E1jpGyufjxnE34oZXOb25os1Upzb8JOcrGeCbtxGIEPuBZ3wjiCbXwbNtrc8GkXzh/oN9qh1OoEbf793a1vtW6NfDK6RgbC9hie4h0ccrSbYml4vhNsrgrolKw2BtY2BPWqDR2rMUbw5zi+xuAbAX3EjetdDEqk0SPAoFTJYVEkYqaF+lJNsUkFRWUzo3YSvC63mndEB4OSw1TAY3YXJKAFnNavjIz/py97FoQVnNaz8JH5OXvb7FmXG49YfSlO51nNzIBBG+3QoENI95GIWAsMxbId5V3dAlc1jdK6aSgSgddNuhdC6A3TXFIlMcUHXeCDZV/wDH9WRaPTL8jmsbwcVTYqfSErm4hHHG8tGVw1kpIB7FD1CrGPinAjwuxMeXZeDI0YWdTcB84VROUayjdylpqI5ff77llaI8paeiOStMQtP6XfDJExoaQ9szje9+QG4bekqH+l1RzR+i7+ZTNcD8PT+TqP8A61yzXGvcLRAkDDidbK9yQB1ZLnaz3t06N/S6p5ovRd/Mh/S6p5ovRd/MuN6Ar5IKlkYdiY9+EgElpubBzQdm49SudatPSRS8WxxaA0G4AJJOzbu+1ZturvW3SjrfU80Xou/mQOuNR8mL0XfzLFat6TfPAHv8K5aSMgbb7dqsSU2m2tCdcajmi9F38yjTa0TO2hnYD7VSOcvMlNs3V5RaXe51iBsce0DLsWq0HUF8McjrAuY1xtsuQDksDo08v6Lu5bfVr8Wg8kz1QqxrZV05qjSRKTdNcLq1IXFdCSk4B97pINVIy4sszp7RAeNma0915SxghRKpyieIsdhd/wDqzWtfxkfk5e9q6np3RIcDlmFy3W+MtkYCPyJe9i3LjJ1kLpXTAUrqFnXQJTboXQElC6F0LoCSmOKJKY4oOj6nH8A0r+jj9lKoPBz4NR4lP6r1M1PP4BpX9HH7KVQ+DrwajxKf1XrZ2MrZ0Z5QWmotiy1IeUFp6E5BdKiKPXD46n8nUd0a59rDodtQ0HHxbm7HHMW5nLea4yfhEDf9Oc+fAuUa71RxNj/Jw4rbiSSM+e1vrXO9ZP8AJI1f1aZG8TOlbKW+CG+CDzk3zWkZq9TVsgbO5rMLSQ83Gz8m4I5758xXN9AzuiqY8Drh7g0gZYmnnHPnfsV5rVpWVkmBjywBoOX5RPTzLFWX1NPDAyNuBgAa3IAbOtIuVVq7XvmgD3+FctJ2Yrb7KwJRzvRJTCUHOTCUYmaNdy/ou7lu9Xvxan8lH6oWA0aeX9F3ct7q+fwan8kz1QqxViurpt0AUlaiv980ksaSDUXQKSaSoW8p4g4LkPCtT4JoOmKf6jGuxErlPDOPhabyNR3xJeE65OChdNBSupaN0CULoEoDdAlAlC6wG6Y4o3THlB0nU8/gGlf0cfspVD4PPBqPEp/UepOqLvwDSn6OP2UqjcHvg1Hi0/qPVTsZfq11IeUtRQlZSlPKC1FCcl0RGd1yP4TB5Kf+BYbT1DDKy8zsGHY+4BF92e0dC3GugPuiA7uKn/gXJtdJncY1p8HBdvNiucXbay51km8k/V7RdK1xfHLxr289hhvvw7e1WlfQRTW4xgdbZtBHaFhNDyObURYDclwBtfwT4QP33LoTisMtymxxtY0NaAGjYBsCDnIOcmEogSUxzkHOXmSgmaNdy/ou7lv9Xj+DQeRj9ULnujTy/ou7l0DV134PB5JnqhVirFdj7/ftQugElahySQ83nRQacoFK6ChYErlXDP8AG03kan1ol1QrlXDN8bTeRqO+FLwjkYRumApXUNOuhdNuhdGnXQum3QugddMcUk1xQdA1bltRaRHyoB+zkQ1AkAbP0in+pjlA0VPhp6tvyoQP+jvalqlNhEvVD6iudib9W6pfCC01CclktHS3IWqoTkFaFHrq/wCFgG/BOfqYsRpChjmbhkbcbQdhB6Ctjrqfh4PJT/wLJ4lzvUXqBo/Q8MBxMBLudxuR1cymuKBKYXLDexJXmXIOcmkowiU0lAlMJQTNHO5f0Xdy3Wh5iykjeBfDC02vbY2+1YLRx5f0Xdyu9Y3f1QMz4EA7MTLrYrGbbXQdcZ4hKWBgcThAdi5IJFzkLHLYp6yPBm4mkfck/hE1rnZ4POtaFcUKKb5kVo0901K68p5msaXONgLZ/UABvNyMhzqFPQrlXDN8bTeRqe+FdGEk0nggRN53jE8jxQQG9pPUFyzhHq2yOhJc55bHNcOwDDcsy5DbZ4enoKr0WxPrkcsBRupXudrr4btOWTsxnsGIbO1RJGkGxFiudljpMpSuhdNc6yZxo5/v9wsa9LoXTDKEQ66AkprijdMcg09OfgpvEHqFLQL7Y+qL1AmwH4KbxB6hQ0R+V1R+oFc7E36tpoefYtlo2a65xo2osVr9GVezNWg3Xb4yDxJ+5ix11qNbJcT4PFm7mLJYlzvUXpznLzJSJTCVjBJTS5AlMugJKaSgSmkoJejjy/ou7ld6xn+qR4tP6zFQ6OPL+i7uV7rGf6pHi0/rMWxWHVzwZfir/wBJm7wtcsjwZfij/wBJm7wtaFc4u9K/Qkj50lrFXrLrVVUVS6MsZJE4B0dwWnCdoxDLIgjZzLxote4ZJWumikbawY1o4xocci6wzLtwy2dZUHWDU3SMr3TOeyc9DsNhzNY6wA6AVSaL0S+KZj6ps0MYBcJGteM7XZaRjXYQTblAGwuvVMPHcfn4eHLyeWZfHy6SzWKCVxY2YR2yIfyJSbbA2QDDt2n6tpwXCi+0kHJIaYpiC52PF8UTax5NiSCBtTYKkVGkI2v4p8dhDyXOezicDgTjkGJzgHE4iL3b0L2kpqZ1Jxwha3G6RsLTLK15jjDWgiwLXyOfclptewA2KL4tc+/4dMfPve/n7+rmQmvfkjELute4dltB3noN1HD+MaQfCaLt6Rvb7F0Or1FYx0IL2scWTSTGxDIXQhr3t5ObsnNB6edZzSGrPuea2MHJrwW8prmSNxNLSQDYh2/Nc748rz3dJ5cJ32ZI5oYRzBWU+hpRewDh0HP61XyRlpIIsRuXDLG49j04545cpmEcwSCSSlRJrk5Ncg0kR+Dl8QeoUNFHwv8Ab9RqDD8HL4g9QpujHeF9D1Gq59E36rMOtmrrRekNxVAHL1ifY3VoaTTE2J0Xiy9zVn7qXx+It6Gv7goGJc8uud6cXJhKBKaSsBJTSUC5MJQOJTSULppKCXo48v6Lu5X+sX9lN6qf1mrO6NPL7Hdy0Gsf9lN6qf1mrYrDq84M/wAUf+kT+staFk+DP8Td+kT+stZdXOLvRv1pJffaUlrGrLpfkM9N38ipo6wxQOjlDLRERG7yCQ6zY9rbZgtz6+ZCTWN25nnVRX6RmecbQ0OtY8zm7QDzEHMHcVmM/VmV/RJqdGRztbipqaV2EEHFhMrDa0kcgbzXP3Cwmstb7kMYpHSxRkzYmOkeWiSB7CCI5Rsu697blZSyT+AyS1hlG7JwIyBaTfEchyr9FxuqNL6Lqpy0yXJY1zbnC62PCci43tyc+xdveT2rh7W+8VtBr7O1nKeSWhzWPlxOeA90ZeGuubtPFAZ8551G0jpMVMsk4PhvLrYsWEHY2/MBkOgBRajVuYHCCx5zBtdzrZZ23b94C8pdWKkgNEdmjZnmTzmyTy3C8L4cc5rdeelZHiMlhtzneB0LMlq1TdXKzZlY5Zlx/hKUepNWdjB/3/lXLy53yXenbw+OeOa2ymBLi1tYuDytd+Q3zn2L3ZwZVx3M9L7Fy1XbcYPi0x7F0IcFtf8AJj9P7EyTgr0hzRfrPsTVNxnLHBJ4g9UpmjQTit/lH/Rq6DR6g1UZkBiika4NAxvsRYEOyaenp2LwoNX3UDMEsdO8lxcXPcXv3AZMI2ADcqkTaykdO87AT1AqS2jkG0W8bJXlfpgEYWQxM53NZYnquTbzqqlnJzJurS8qV3K6g8fUo90aB3Kd1v7ivK653rnenlyYSgSmkrASU0lAlNJW6DiUwlAlC6MS9Gnl9ju5aPWT+ymdVP6zVmdHeH2HuWn1n/sln/H72ovDq94M/wATd+kVHrrWLJ8GX4mfLz+utarnF3pJIXKS1ixdoA7pPOPtXkdAP+W3zFaFAhRut0zjtW3Oyc5hHMRfvVJrXSUdBBxtU+zScLWRi73u24WNOXabALerjf8A6h6KU+5ZwCYmtlY4jY17ywi/NiAt9Fb6qemVCpOE/RsYwtopzb/PEPOApreF2gH+Am9ONUUevsIdDHhLomU7A50hkeBIyikgwRQ2+DBfJZzh4VgV5RaS0KWvLo2Xe+B+EQPGEj3MZgwgHkHDUDDcDlbCCCJ3VemNO3hmoh/gZvTiXoOGyk+YzenGspFrBooscx0MbWPkgdIyOBwxMiqanIHceJdTuOYxAPG0rzl0zolrHYaeB8ha/E73O8RukFM7izE05xsMwjBBtscbAFNt1Gw9/GlH+CmH040Rw5026jm9ONYrQunqOCrrnRP4mKZjBBb3TGARJG94vB8IwZO2W5titjrHoeWUOnu+MPqSGyQE5T1JkJGEck4Tlle28Ha2aX54cqb5nN6cauNA8J1FWXAbJHKMxG8DlDeWOaSDbsPQudaD05oqEMxsaWmlEUkbIJBK55EPGiWYutIHPY9ws3ZlduxZvV6mL668RDmse95e1pY0RjFY4PyAbgBvTbctjLHadI6xvfcN5Dejae1ZPSUt99yvKepVXVzldHN5Sxuv9oTH0sx2Ru7AT3KFWSZdo7170tRbYfMsafTwOYeU0tuH7QR+T0qJdWs1QX4buJsH7STbLcqlc71zy6RKBKBTHtujDiU26YWJuDpQPugSggglaOPL7D3LV60QPGiYy4ck+5rG43ltslktHnl9h7l0HXRo/wDBwG+dqP8AhWrw69+DMH3EbAkcfP661V3fJKpOCiK9Be4+PqP2hWw4jpHnWy+y71U3PyT5j7Ela8R0jzhFbti8sgUSUCVKjSvKpp2SNdHIxr2OFnNeA5rgdxacivYoFBmzqBor5hB6CX9ANFfMIPR+1aMJXWaGafqFoof4CD0ftVbWakaN/JoYB9H7Vs3hVdWeZVIy1m6fUbR186OH0VYt1G0V8xg9H7VNpH3OasmjJbYyVnn6j6L+YQeh9qqNNUEFNC5lPDHE0m5EbQ255ydp7Vsqh9gsNrXPcEJIWsVNIqyqlU6cKn0hKBltPMMz9g6VtIi1UmXaO9NjqFGkgLtuQ5gf370W0vS4dvtUqXlFJi8zvVUZP0NGRe7icnbbfJ6Am2UuOfTSmp5CZZEmlNTiELIGlBFKyD30eOX2HuW41wkvoaEfon1YVidHjl9h7lsNbZGnQ8IDmkj3LcAgkWttG5F+PrRcFUlqAeWn/aFbIPWI4LgfcDT/AK0/7Vy2AJVTjpeve6Kj40lrEx2n4x4UVQ3/AGJXeoHJf0jpt8hZ5RksfnxtFlOIQwqVIUOsdG82bV05PMJo7+a91Pjma7wXB3ikHuXjLA12TgD1gFV82r9I/N1LA485ijJ89kFzdDEqMav04yazAP8ATfJH6jgkNCtHgzVLf+RM713EILmQ5KqrCvJ+jZt1ZUDotTu9aI968HaNm31Tz1xw/uaFsTXrS7VZtcqQaLn3VTh1RxfvC85dXql//uVQ0czY6YfXxa0iZpOoAC5/rHXMbcve1vWbE9Q39i0lTqLj+Mrqt/W8NHmjsFX+9zTtN2yOBO04WknrdtKFc7qKp8mTAWt+URyj1Dd1nzBeEdEB1naTmT1ldKOoMf59/oN9qa7UFn593oN9qDnXuUJe4hzron9AY/z7/Qb7V6M1Dh3zSnqwD+FBgaGAMddxys4ZDO5FhtXmKQ7l02DUykbtD3+M/wDlAV3RaKp4vi4mDptc+c5ppNkrldHqfVStxNjAH+Yht/OjLqVWj+5B6nx/vcuwff7+dIrNHpjismqtYNtO/ss71SVFk0HUjbTzD/ak78K7oUMITR6I4HJQSN8KN48ZpHeFGIbzjzhfQhCZJEDtz600eiOF6LpnF+TSeS45C+QBvsWk0hiqNHNibGzEI4i1wFnHBhO3psukOpWfIZ6LfYl7mZ8hnot9iaJNMZqto5sVNGySGIvAJc63KxOcXEYujFbsV4ylYdgc3xZZm+q9XAgZ8hvohHi2/JHmC1W1V7iHypv18/8AOkrTAOYIINHzdRTR7O8pJKVGjYfvvThu6kklo8wiN/33JJIE/d99xXg72/vRSWpGP7+ZewSSSjxlUWXf2JJJB5Hb2nuamD93sRSWsB33+pJJJAGr25usJJIEd3aid30e5JJAXbu3vTRuRSRsIe1M9oSSQMk+/nKDv3hJJCgg3akkjASSSQf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw4QEBANDg8NDQ0NDQ8NDg0PDg8ODQ0NFREXFhURFRUYHSgsGBolGxUVIjEiJSkrLy4vFx8/OD8sNygtLisBCgoKDg0OGxAQGi0dHR0tKy03LS0tLS0rLy0tKy8tLS0rLS0wLS0rLS0tKzctKy0tLS0tLS0rKy0tLSstKy0rLf/AABEIANsA5wMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAgEEBQYHAwj/xABIEAACAQICBAcLCgQFBQAAAAAAAQIDEQQFBhIhMUFRYXFzkbITFSIyMzRUkpPB0QcUI1NygaGxs9JCUmSCFzVio/BDRGPC4f/EABoBAQACAwEAAAAAAAAAAAAAAAADBQECBAb/xAApEQEAAgIBAgUDBQEAAAAAAAAAAQIDETEEEhMhQYGxBSIyIzNRYXHw/9oADAMBAAIRAxEAPwDuIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAY3Ns5pYe0XepVltjSh4z5XxIvcXXVOnOo91OEpv7lc57SqSm5Vpvw6n0lSb/hjwLkSJKU7uWl7aZuekWLe2NLD01wKcpykuexFZ/jf6P1an7jl+dfKNSp1HChTU4p+UleUqnKls1U+C/UjadE9OMNi4wVSkqEpy7mpS1JU+6btVteK3stdW270b/Zw0+/ltKz3GceC6qn7iqzzGceC6qn7i9jRg14sfVR5OgpNqNODtxxT28QnsiNzBHdM6iXlHN8c93zP1av7iXfTH/0fqVf3HnVwS22Xcqi4Y+LyXXEUw1Ru8ZK04O0l71yG1a0t6NbWtD1755h/R+pV/cO+WYf0fqVf3ErFbG/h1/hr4lnm8yzH+i9St+4ssdneb04uUKWCrWV1FRrLres31RZkbCxjwqniWcxx/wAt+LoVHRr5fCnUjvi5t7OBpp2a5UeK+Xur6HR9eZX5atH4Sw6xsI2nRktZpbXGUkpR/HW5NWXGzimpLifUyC1ZidJ6zuNu1/49VfRKPrzI/wCPtX0Kn67+Jxbucv5ZdTKqlL+WXUzXVv4beTtK+Xyt6DD1pfEf49V/QYdcvicnwtJqKT372XMYHfToptETM69kU5NOu5d8vVFySxOEnTjwyg9a3Lv9x1TR7SHC4+kq+FqRqRe9J7YvhTPlLuCexpNcpnPk5zurluZUYxlL5vipKE4N+C29ifPfZzMjz9HbHXu5hmuSJnT6mBSMk0mtzV1zFTiSgAAAAAAAAAAxek8rYSu//H+bRzbSSpKOBxGrvkowf2G4xf4SZ0jSjzOv0fvRouJoxqUZUpq8amvGS5HFE2PhFfl8+0LTqvustRSk9aVr228RmskxSp3paykqtOM2lsSnq7Y9Tt/aXWkWiFenUlKCck3fWUXKMuXZuf4FdGNFqs60JVoz7nGScklKGsuLWkti5rmnbPGm/dHLvWjOLlUwuHnUbc54ahKbe9ydNbXz7/vMjeW1wvy7G1dGtZlmkcJhpVJWerDW1Y+CnZJRhHiXix5EcszPO62IbqYipKe3ZHb3KmnujCG6K/HjvvN7a4lpXe9w7vZpvWvrPa7qxa1NlZf66KvzqTV+q3Ucs0V0orYWrCnUnOWEnOMKlKbclSUtndIX8Vq97LY1e/A11Cs7VoJ8FOS+9TZtj5a3heIqQjIncnQgAA1X5Sku91dvgp1f0Zr3nz4kfQnykf5diOiq/ozPn6KJsMb23ifIjE9IxEYntCB2UoxMqRge9OmSp0y8o0Tsx4kVr6edKiW2YQcK+Ckt/wA4TXOpwM9hsMY/Sejq1cBy15fhKka/UKRHS29vmEeHJvLEf78PqXLnejSe+9Gm78fgouC3y7yNLoqfZRcHlJWgAAAAAAAAAAMVpR5nX6P3o0WUrR/un2Ym9aUeZ1+j96OYaT1ZRwlVx3t6j+zLVT/C5Nj4RX5a3nmm8KUnClGM7fxSTlflSutnLc88k05jUmqdWMYuTspRTjt5ru5z3C6tSpN1ZNePLgu5JNpLntYpi4RhCjOMk5zgpyUf4JbdnPuMd08s9scO1aTUpYnBNU3dpWXE9qlH8YpfecthjZRvBpJqS1ozW1SjdWafOzpeh2LcsPBVNuvBKSfHZP3slm+SZfJ6+JhQd9ilUc4TduDWhJN/fc2mN+bWJ15NEyelUxuJp0IJeHKLqSXiUaEbKU2+BKK67cZ3CVXWqxluvCbSe9JzdjX8owWGoU183hSjSm4v6CPg1HeycpXblblbsZinK848lN9p/A2rHntrafJkoyPSMi2jInGRMhXFytzyUiqkBrnyj/5diOiq/ozOBRifQumOHVXCyoybUarlBtb0nTmmfP1JXSfGjr6WN7beiUIlzTplKcC8o0i0x40V76Vo0jI4bDjDYczuX4K9th2xEVjcuHJlMvwN7bDD/KJhe51Mr/1V6v4SofE6JluAjFa87RjFXbfAaD8qONVTEZaoq0Kdeqorh2zo7X1FP9Sz9+Oax/Xyz0UTbNE+kb+H0Tl3kaXRU+yi4LfLvI0uip9lFweclfAAAAAAAAAAAxWlPmeI6P3o57j8NGrTnSn4lWOrfgUrbGdA0tqKODr34YqK2N7XJJbjSkuAnxcIcnLjGfaK1qdSTV4ybu7p6sv9Sa3X6i2yzRutUmtdayTWyz1fvb4OY7ZLDp7HZr+WSUkua5SOChwQpLmhYz4cMeIweX0VSpxgn4q2vjZjdKsJiKrhUoxlVjqajjFrWi7t3ty3/A3FYOP8tP1T2p4aK/hp+qbTTcaYi+mB0Qwdelh9SrsqTqSqal0+5xaWxtc1/vNowseHkSXMiMI8GxLiSSR6xZvWumlrbe6ZNM8EyaZu0eykSUjxTJKQGE06rSjgqs4NxnCNSUZLepKlOzOH0oHdNKYqWHcZK8Zayae5ruc9hxLDx3cxYdBG5t7MWnUPahSMnhcOeWEo3Ngy7B3tsLutYrG3BlyJZfgr22G2ZbgIxWvO0YxV22Msy9RWvKyildtlrm+Za3gx8GEdy4+V8pw5883ntqgpSbz/AEjm+aa3gx8GEd0ePlfKc20zq61fA8leXapmx43Emn6Q1Navg+Ss+1TODq6RXBPt8wsumrq0a/7yfVuXeRpdFT7KLgtMqqKVCjJbnShwNbo24S7KGVmAAAAAAAAAADCaZeZ1f7e0jUEjbtM/M6v9vaRqiR0YeEGXlRImkLFSZEqiqKIBhNMkmedyqZkeyZJM8UySkGHspFUzxUiSZlhj9JZpUG27JOTb4l3ORxrDR3HX9KqevhpwWxzU4356cjksIFp9Mj8vZDnt2xDL5bBNo3vJcAlHXlsilds5xQxThtW82rA5/VlSUJ6qtfxVa/Pxsseo7prqri7e6WbzbML+DHZCO5cfKzWMZid5PFYq5h8VWIa4orCeuo8oeWKrmuZrO9fC9N/7QMpXqGFxsr1sN0y7USv66f0p9vl14Pyh9bZH5tR6NF8WGRebUejRflDPLvgABhkAAAAAAABhNMot4Ktazsot7bbNZXNVRt+lfmWI6P3o1BHRh4QZeVQUuCZCqChSc0ldgSuSlFq11a+4jgnrt2snGzs+FF3Xw8n4TkrpbrWSRjbOlsmVuedytzLD0TJJnkmSTAs8820l9p9iRzVYJ8R0rN4OUIxW+VRRVt+2MjGrJHxFr9Ny1pFt+ulf10/jH+tLhgHxF5Tw7RtcclfET7zPiLKepo462ahUosx2LpNG+zyZ8RgM9y504uTVka+LS3CSl/NpWIZiMU/psP0y7UTI42sruxiasr1qHSx7USp660Tjn2+Vt09Z2+vski1h6Klsfcouyd96uXxbZb5Gj0NPsouSil3gAAAAAAAAAAxOlnmWI6P3o05G4aWeZYjo/ejTkdGHhBl5VBQEyJU8MY9i5/cexGpDWTXH+DMMw8Mvr6lSL4G9V8zM7iotwaW/3Gt9wnut8DPUcWu5xcvHtZx4dZbLmG0rIqUb4eMGzRIkmQKphha5xVcacZp2cZ6yfCmoyMN39q/WT9ZmR0llbDyfEpP/AG5HP5YtnZ0tYmJ2iyV3puCz6r9ZP1mS7/VfrJ+szT6eKbJvEs7K4qotQ2qekFX6yfrM17SfM54in3Oc5SinrJaz3mPq4tmOxWIuLUrDelY2w2Io2ZZW+modLHtRMjXdywn5ah0se1Er+qj7J9vl2UfYuW+Ro9DT7KLktst8jR6Gn2UXJUy6AAAAAAAAAAAYjSzzLEdF70aatxuWlvmWI6L3o0tM6MPCDLykClxcmRKgpcXAqClxcwKlSNxcCaZVEEySZkYzSfzaf2Z/pyOefNZSXgptnRNI/N5c0/05GuZRTV0zs6WPtlHktrTEUcsqQgnOMotpO0k00W9eNjo2kVFPbb+FfkaHmVOzZa4Yi1IV0Z5mfNhq0iyqyLvEFjVIsldO3Fba2qMtJ+WodLHtRLqoWsvLUOlj2olb1X7c+3y7MfL7Fy3yNHoafZRcltlvkaPQ0+yi5KeXQAAAAAAAAAADEaW+ZYnovejSUzdtLfMsT0XvRoyZPh4Q5eU7i5G4uTIkri5G4uBK4uRuLgSuLkbi4E0ySZ5XJJgWWkL+glzS/TkYHKuAzmfv6CXNP9ORg8q4Dt6X8Zc+b0bVni2L7K/I0TNVvN9zvcvsr8jRc1W8tek/CFRPq1rEosKpkcSY6sZzQ7+nnyWsy1l5ah0se1EuZlrLy1DpY9qJU9XH6c+3yssfL7Gy3yNHoafZRcltlvkaPQ0+yi5KWXSAAAAAAAAAADEaW+ZYnovejQ0zfNLfMsT0XvRoCZPi4Q5OXpcXIXFyZoncXIXFzAncXIXFwJ3FyFxcCdyqZ53FwLXPH9DLmn+nIwuVcBl86f0Mvsz/AE5GIyp7ju6X8Zc+aG253uX2V+RombPeb1nb2L7K/I0PNntLbo/wUtvVr2KZjqpf4lmOqszmWHTx5LeZay8tQ6WPaiXMy2flqHSx7USo6z9ufb5WOPl9jZb5Gj0NPsouS2y3yNHoafZRclLLqAAAAAAAAAABiNLfMsT0T/NHPUzoWlvmWJ6J/mjnKZPi4RX5elxchcXJGidxchcXAncXIXFwJ3FyFxcCdxchcXAtc4f0M/sz/TkYnKZbjJZ1L6Co+KnUf+3IwGT4tXV2dvTW1WUGaNt5z17F9lfkaBm1TazcdJcZFbLrxV+Rz/McRdsuuk8qKTW50xuJkY+rI969Qs6kiPNZaYK6hCTLf/rUOlj2onpJnlHy1DpY9qJVdXP6c+3y7qcvsjLfI0ehp9lFyW2W+Ro9DT7KLkppdAAAAAAAAAAAMRpd5jibfVe9HNkzqWeYd1cNXprfKlO3Pa6/I5RSleKfJtXE+FE2PhHfl63FyNxckaJXK3IXFwJXFyNxcCVxcjcXAlcXI3FwMfpFK2FrPio1n93cpX/A5jUzCSi7NrYdD0wxSp4Os3vlTdOK43U+j67Tb/tZyerMlx31DMV22DBZvN04xlJvViltfARrYm5g8PUsi57qWuLqJ7IhyX6evdtcVKhbykRcyDkaXy7SVpokyFPy1DpY9pBsuciwsq+NwtGC1nKvBtcikm/wRxdTbdJT1h9gZZ5Cjff3Gne26+qi5PPDU9SEIfyQjHqVj0KtMAAAAAAAAAAAaFpJotUhOVfCxdSlNuU6MfHpye9xXCv+c++gzE6YmNuNy2bJXi+KScX1MprLjj1o65PL6EnrSo0ZSfC6cG+uxHvZhvqKHsofAk8Rr2OS6y449aGsuOPWjrPerDej0PZQ+A71YX0eh7KHwHiHY5NrLjXWhrLjXWjrPerC+j0PZQ+A71YX0eh7KHwHiMdjk2suOPWhrLjj1o6z3rw31FD2UPgV72Yb6ih7KHwHiM9jkutH+aPWjyxGKhTi5SexK+5u/MkvC5ld8h1/vXhvR6G3f9FDb+BCOT4RbVhsMnyUaa9w8Q7Hy9pdmGLxc1ClhcUsPTd4t0KilVna2u1bYkm0lyvjstdeW4v0XE+xqfA+xe9WG9Hoeyh8B3qwvo9D2UPgY8SW2nx1HLcWv+1xPsanwJrA4z0XE+xqfA+wu9WF9Hoeyh8B3qwvo9D2UPgbRnvHqx2vj75li/RMT7Gp8CnzHF+iYn2NT4H2F3rw3o9D2UPgV72Yb6ih7KHwHj3/AJO2HyNgtHsyryUKWErtt2u4OKX3ysdv+Sf5MXgJfPsbaWLa8CC2ql/9/wCc/TaeAoRetGjSjLjjTin1pFwaWyTblmIAAaMgAAAAD//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhAQEA8VEBUXFxUWGA8VEhgVFRYVFxUWFhUVFRYYHSggGB0lGxYVITIhJSorLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGislHiYtLS0tNS0tLS8tLy0rLjIrLS0yLSstLy8tLSsvLS0tLi0vLy0tLS0tLS0vKy0rLSstLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQQFBgcDCAL/xABSEAABAwIDAwYFDwgJBAMBAAABAAIDBBEFEiEGMUEHEyJRYXM0cYGysxQWFzI1QlJUdJGTlKHS0yMkU1WxtMHRFTNicoKEwuHwQ5KVoyWDojb/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQIDBAUG/8QALREBAAICAQMBBwIHAAAAAAAAAAECAxEhBBIxURMiMkFhgaEjsRQzcZHB4fD/2gAMAwEAAhEDEQA/ANxQhCD4nlDGue42DQXE9QAuVWcNoW1MLKiuYJ3TND+Yk6UMTXdJsTYj0LtBAL7XcQTe1gJjaPwSr7ib0blS8K5QcOfTQtZVZjHG3nAIpeh0RvJZbgfmWeTeuEwsHrcw79W0n1WL7qPW5hv6spPqsX3VWTylYZ8bH0cn3UnslYZ8b/8AXJ91c/6np+ErP63MN/VtJ9Vi+6j1uYb+raT6rF91Vj2SsM+N/wDrk+6j2SsM+N/+uT7qnd/T8Cz+tzDv1bSfVovupfW7h36tpPq0X3VWPZKwz44Po5PupPZKwz44Po5Pupu/p+BZ/W5hv6tpPq0X3UetvDf1ZSfVYvuqseyVhnxwfRyfdSjlJwz44Po5fupu/p+BR9v9oqWKSVlHhtHFFFIYTMKSAvklbfnA0uYQ1rbEbrm2/UKof07N8Qb9Vi/AVq2Qayatw9zgHtdW10guLgkRvkY6x4ghpHiWxVNZK0uDYS8AgNIcekCLk6DS3bv4LabdvGlXnUY9N8Rb9Vh/AT2h21roCTC2eK4tkYMrPJGI8gPaBdeiIZCWtLhlJAJb1HqX3dV9r9B5/wDZKxX4VR8w/CSeyVi3wqj5h+EvQN0XU+1+g8/eyTi3wqj5h+Ej2ScV+FU/MPwloO2m2FdSV9NTU9OJGP5vQxOcZcziHhkgdZpaLaEabzpotAJ7VM5Jj5Dz/wCyTivw6n5h+Evl3KXio3vqB834S3murmwtzPd4m8T4lU66slqXagkD2sbbm3k4+NY36qK/LlG2Yeydin6Sf5x+Ej2TcU/Sz/Z+EtMjwyoLgOZIacvTN9Lmxv4tT5O0XZyTyNzFlDUTBtTBB04pYg5j8xlna3LmLG2AzGw1ueASvUXt4p+RTsE5XMRjk6Z59rdXU8mW7mg9LK8Ma5rrG4vcdhXoPC69lTDDURG7JWNkaSLHK4BwuOB13LIeV6ijY7D3Mja02qW3AtduRhAPXrc+U9avvJWf/iaDu7eQPcAumttxtK1oQhWAhCEAhCEEdtH4JV9xN6Ny8w7BD8hifct/1r09tF4JV9zN6Ny8xbAf1GJ9wP8AWgq0HtQui5we1Cd0rGOJzuLRYkWFyXcG9nj7EHBC6TMsdDdc0AhdAwWvfXq+bj8/zLmgEIQEGj8nHhGE9/V/uz1uaw7k6bafCb/p6v8AdXrbpZQ0XPisASSeoAan/ZYZfI+0Jq/EYWkNMrQTmAF+LbZgeoi43rqKlh1EjTqBfMN53DyrLSHVCatxCI5gJWki5IvroMx8emviSjEItPyrdTYAmxvrpY6g9E6diaDm6Q9i4+rI7X5xttRfMLXFrgngdRp2o9VszZM3Sva1jobA6m1uIseN0HP+jmF2d45x3wnajxBu4BOmMDdAAB1AWXBtdEbWlYb6Ah4IJ6r3367k4URWIFe2mxh0QLIzlPF3HydSzusqXvcS5xceskk/OVoe0WEGZ7MrmtDt7nbgf4pqzYeP387j4mhv7SV52fFlyW48DK8bkcX04JJAE1gToOgOC27kr9yaDuz57lm/KVgkdKaIxlxLvVIJcRwjZusB1rSeS0f/ABVB3Z89y9XpKTTFFZStSEIXSBCEIBCEII7aPwSr7mb0bl5j5P8A+pxPuB/rXpzaPwSr7ib0blguzewWI00EjwKcsqomgEyPzAWJ3Blr9JDbM4PahdAVeG8llYNM8P0r/wAJL7F1Z8KH6V/4SI3CjEpFeTyXVvwofpX/AIST2L634UH0r/wkNwpF0iu/sX1vwoPpX/hI9jCt+FD9K/8ACQ3CkIV39jCt+FD9K/8ACR7GFb8KH6V/4SG4SfJz/X4T8oq/3Z62jEZA1lzG+TVoDIyA+5cGgtJc21r33jS6xrk/jLKnDGHe2prGnxtp5Af2LbJIw4Wc0OHUQCNNRoVhl+IRfPU+WMyRuZzmboPBLmk9F7SWkgWPUbcRvSwepX5ogxtiMxa4HLYiwOumoff/ABHjdSbY2gABoAG4ACw8Q4IawDUADydZuft1WexGzVFMwuzC1yQei7f043HxWDxpwXGqq6Nn9Z0dC7LZ2gBcwjKO1hbYb7NGuimS0dQ+bikEY0GUabhYaJsNnQxXDebve/DTpDKb+MNA8iamup85cLucCLkBxsXOyDfpbNYgbukDxunXq8Zi22nXf+C+opml1g0C+twB1k/tJPlWVckbndt88LTHpD6FFGLdAaAgdgN7j7T865w1rPaukAdc6E28gJ3rhU1zmvsBpbceJ0KiXQGV7tMu/fx46LO+fnhExKx1EDZG5Tu6wmFDGxrsjaiQ6mzLggAf4dAop1K5mbJO5oFwQOJ3aaqDqap0LwH3e0i+ZuhtfW44m4Wd88cTo16uPK+8ZqFma7gKkkaXAMbACbK9clvuVQd2fPcsl22nbJLSvYb3bMDc63DBvB13W+Za1yXe5VB3Z89y9Lp79+OJFqQhC2AhCEAhCEEdtJ4JV9xN6NyhaBv5lQ903zQnXKE4jDMRINj6mm1/wFccOH5nRd03zQilnxkRkXayLKVHDm0ZF3siyBvzaObXeyTKg4c2kEa7kJAEGTbGD89ofluIehlW0LGNjfDqH5biHoZVs658vlqEIQsgLnK0ncfIuiComNwlVZM7nOawai3SJ0GvHyJ3RXbJG1xBJde4vuDT/Ip9Wg2LW2B326yoahqxzscjjlaxkr5Hn2rGgO1ceFtF59a6vEfVaZ4T9S1rXB5Gu7N1aKIfUXnYBoS63kO/+KpmKcrDXc42GjLmnRr5Jcp7HFgabddr/MqrFt3WNnFQXMdY35kxjm9dDu6XlzLfJgvaePVG211FCR7Rw1GtxuJFjZMKvZ4SsDRlvoOccNQN5A3neqpTcqIPNeqKJ0DJCbTiTM22bK5wBYLhp32NxZaXFawym4sCCDcEHUEFTGDc+9BMsh5QcFNK6jJeHZhUDS+lmN6/GtQ5Lvcqg7v/AFOVJ5Yd9B/mvRsVr5HJ3PwmlLjexmYNPesme1v2AL0MNYrSIhC6oQhagQhCAQhCCC26p3S4diEbG5nOp5gG9ZMbrDVNsN8Dou6b5rVNYx4PUd1J5hUJhfgdF3TPNailnRCVClQiEIQCRKkQIkSoQZJsZ4dQ/LcQ9DKtnWMbGeG0Py3EPQyrZ1z5fLUIQhZBtVT2BtcWtr2XTVteRlJ6QO8fyTqtZdjh1jT+CrkdcHODSLFvveOY6D+P2Ljy5LVt5XjSymNkgDi0HxrGOUXaqeWWWhY4RU8ZDSxuhkNg4l56gT7UaaXN+GriqFNBNJICcjXyEDU2a29h1nRed6yqdNI+WTVz3Fx6rk3sOxdWOd8qy4oUrhU1KWGOojIJNxOL6dQNtR8xCdYtsw6GnbWxyslgc7ICD0wdRqBoRcEXve/BR7WIt2zEx/lBpR18RYYqiHnLNIjkYQx7SbZWknTLfM6+8Fzt+Yq37GbT1VG+Kikc2aF7fyT/AG2ToZwI3++aN1tRqC05SL54ndPicjJYp3PdIYyCM7i7ojewE7ha/wA60tuazEC7bezvkkpXPJOlRv8A7jd3UtE5Ffcin/v1H7xIqJyhURYKCQuvnFQQwC2Uc2wi54nVabyY+5VB3Q/aVp00TGOO7z/tKzoQhbgQhCAQhCCD25qXRYdiEkZyubTzFrrA2IjdY2Oia4Z4HRd03zWrryie5eJfJp/RuXLDfA6Lum+a1FLOiEIUqEQhCASJUiASJUiDJNjPDaH5biHoZVs6xnYzw2h+XYh6GVbMubL5ahCEjnWBJWY5ywh1+BItdRtPhULTmc0Oe0gBx0OgBB39vFPJcQY3fcdpGiY1TnuOcWLTxaT9vWubJam9xzK0Qbz1zQ8McRlvZ1xpbjfsWEY5SNgqaiFntWSyNbrfoBxya8ejZbXU0pJJA6PEA7+sE8FWNptjzI+Oqhha+QCN7oPeTZA0uaRubcAN7ePWs+myTFp34TMcMtBV8l//AJ6L5Q700irO1GLsrKh08dO2mBa1vNttvbe7nWA14bvehdn7ROOHsw7mhZshk57NqQXOdly201dvvuG5deakzrXylnHMcoRS+x9A2prqSCQXY6QZm9bWgvLT2ENsewqJa0kgAEkkAAakkmwAHEkrZtgtj4qEtqJ+nUZdDfoxZh0mtHF1jYu8drXN7zaI8pN+WDfQf5r0bFbuSKq53CaM2tlEkfjEcr2A+WyqHK8bmgPyr0bFZ+RX3Jp/79R+8SLox/CleUIQrgQhCAQhCCu8ovuXiXyabzCueG+B0XdN81qcbewOkw3EGMF3GnmAFwNebPEpvhvgdF3TfNailnRCEKVCISpEAkXKrlytuN50CbPhDbF0hBPHU+NA+SL5jeHC4N+1fSDJdi/DKL5diHoZVrtXU5dARfiCsi2L8Movl2IehlWwywg6ka9a5Oo38m0OME3OAkEtI3i5+xR1ViLoXXd0m8W33jy8V2pHkPc0uJJO+wsBwHZ40TUZk6WW44dvavO77zETHlaYRVVJzhuGnrAPAHUBdMMlyPBO42a7xEa6dht8y64lOYrOIeRcX0zePxL5kma0c5vDgCzT21x0fEsLR729piUi+BsTnyktygWIcdCNDe/zKNqdoYC5rWOyX99YWJ6t+n+6TH7OhZfoZhcjjfqv2XKphpxms1oI1Iub3aSQAQLWd0ftTJ1Fsc9tOEaWnEMDpZy581NCXHe/m2hxFr5i8C/lvwVTOxdDzuZjpTHvEZd0bbvbWzW0Ol79qt8LC6m5rTM4GwdcdRc2/DT9iY08LgA2RoabnTWwN93ZuAuk58nGp8p1Dph2FU0TmPgpYWOG6QRMzeR1r/arNh0ZcDnv2HcdUywClNy5zLNtobaE9n2qeXZhra0d1pVmWc8rwsaAfKvRsVm5Ffcmn/v1H7xIqzyv76D/ADXo2Kz8i7SMJprgi75zqLaGeQg+Jenj+FC8IQhXAhCEAhCEEdtJ4JV9xN6NyicM8Dou6b5rVLbR+CVfcTejconC/A6Lumea1FLOqEIUqBIlSIOVTFnbb5vGm7jIRlLAT8I2+dPUiDlTxZWgLolSIMl2M8Movl2IehlWzFYzsZ4ZRfLsQ9BKtH202nZhsHOEZ5Hktii+E61yXdTRvJ7QN5C58vlq4bX7TwYYzM4c7K8dCnBsXf2nH3re23iusjxjbmvqSc1U6Fp3RwkxNHlacx8pKh66smq5jJK4yyyOA7SSbNa0cBuACltodnvUvqZjmPbcAS1RuYs7jchvYxvH31j1LDdaTFfUR0OPVbN1XP4nTPeP+1xIV12e2+50Mgq4wXABscjCGBx3BrxYhp7RpruCjMVwGnY2pvTy0zYSzJVukzioBcAQ1pGUkgkjL5bblBbQxUzXM9SkEdPMGve9ts35M3eAQ4t9sNwKznsyxrX3TtubKeN8Vsps3ewjpMcRqCP+b1FRYcxrnvBBA1B+y3juo7YfGZKpkEjnWe0czKfh5bWL+slpB7CSpimidmLRYgm5sQQSdd436cAuDJWvdr0nSyvSzS5xI517a5feBt+A/wCFTtJWtey7ujuFr3vfcAeO7x/MvjFcGyh0jL24t8e+xTPLowMGbj231ABHiWFa3rbkmU6NoBYMhZe2hc7RvbYcU6w7FC4hrzmJNgRuB6lVXWDshmYH8WanL2EjS/YpTCbse17y0Mbcl17gnUDLxJ1GnBdePPebREyhDcr++g/zXo2K68lvuVQd2fPcs+5UcQbM6iDAbD1TqdL3jZwWg8lvuVQd2fPcvZxTE03CFqQhC0AhCEAhCEEdtH4JV9xN6NyicL8Dou6Z5rVLbReCVfczejconC/A6Humea1FLOoQhClQiEIQCRKkQCRKkQZLsZ4ZRfLsQ9BKmPKziBlxCSO/RhayMDhdzRI4+XOB/hCfbGeGUXy7EPQSqN5VKIxYlO47pWxyNPC2QRn/APUblz5PiauXJ/g801THPGwGOF4L3vNm3t7Vuhu6xvbxXIuFP4ngrsOhqZXOdXMkmhe5hboxjJQ8ufdxzONg24HVfRTXJZI2SjZEwgOY+TnBxuXFwPlaW/N2Ke2siZDS1Ekhuzm3hwPHM0gNHXckC3avnc/U9VbPPZT3KzqfWdT/ANLupgxTjjunmYZfiGMwZa5wrZarn2uaylfE9rYi512uJd0ehwyqoJAnGH0T55I4Yhme9waATYXJtcngO1e5SkUhwtH5LIy2lqH2veRwHC/QYP5/MpaZri8SSuJIvbL70n4IG638E9gpIsNhhpzdxa0FxaN+Ym7jfiXEm3UviihFQ18rX2LCDzZFnW3h38PIvL6iJveYheJ0kcPqZKiKZjt97Md775+Nhx3qOoaWTO5ua9g4Zr7nWIBv2H9ic1dVHTZGPaZHHTmmgGwA6Tjw4eW6SaqD4hLTTFrYjd0WXK5oPAi18tzfTT+ERrxM8wSq8UAjkdHYgEZc77bxYk6bhcaEf7Ky4TIA17i67D7w+LUDruvrnY5+ba699+YNvqbXIA8QXV2DMOVrHyED/pjIzeblxJueobuCzrimJ3HJtQdsyc1KC4E2qNBw/JtWs8l3uVQ92fPcsw5R6IQzUbQwMvHUH+sLyei0XJIFvEOpafyXe5VD3Z89y93o4muKIn6/uqtKEIXSBCEIBCEII/aLwSr7mX0blD4V4FQ9yzzWqY2h8Fq+5l9G5Q+E+BUPcs81qKWdghCFKhEIQgEiVIgRIlSIMn2M8Movl2IeglV75Qdk/wCkYW82Q2eK5jcdzgfbRuPAGwN+BA4XVE2N8Movl+IeglWyrny/E1YRsvtRLgzp4nUDDM4jO6UubI1oGjBYe1vc3G+/HRcdr9uKjEmsjexkMTTm5tlzmdYgFzjvABNhYeXS23YtgtPVgNqadkwG4ub0m/3XDpN8hUA3k1wwG/qZx/smomt591TuGIUFFJO8RxML3HgNwHW47mjtK1vZ7ZqOjgyBoklf7ebgepjf7I+06+Kzf0PDTNEdPC1jSdWtaAPGSBcntK5Pp3x6gG3UR+xcWe9re78k+FcqqRzXNYDmBIuOAaNVIYKRHI8OIa12QHgNHtP7AU4laBrbVNG1BYbtYHm4Grbjy27Lrhj3Z2mI2abTwFk99wccxdw39nD/AGTjB4iefmc24LXgDsIyj7D9ikaRrKgEFoY9p1jHtT1uA4X1+ZN6ervL6iDSC53t2v3AWc9rmkH3ocQorjjv7vXx/VaZ+SL5wxwVBAINwxvY197ns0BHlUXGAMjmssBctNrPBLzbM732g4dfYr5jNMyKIucHzZnMZlOUe2cNei0bt/kVelfTwPs8kCwNi0mwv2Kc+Ga2iNoiURypVBc/D2uaM3NTuz8TdjRbs1BWi8l/uVQ92fPcsx5RCyR9DMyXPdk7LWIsGtBGh198Vp3Jf7lUPdnz3L3elneKJRK0oQhdCAhCEAhCEEftD4LVdzL6Nyh8J8Coe5Z5rVMbQeC1Xcy+jcofCfAqHuWea1FLOqEIUqBCEIBIhCBCkCUpAgyfY3wyi+X4h6CVbKsb2OH55RfLsQ9BKtfq6lkLHyyvDGMBc553ADeVz5fLV1Qs9dyt0mewp5yy9ud6AO+2YMLt3Hffs4K9YdXR1EbJoXiSN4u144jduOoINwQdQQQs5rMeQ4XKaPNb/nCyj9o8fgoIuencbE2bG0Xe91r5WgkDykgDrVYwjlTpJ5RFJHJThxsJXFrmA7gHlpu3x2IHEhRNO6EprE2lrrgAg6Zbaab00EjSLAb+HHydas09K119BfrO6/8AwKobU7T0tBeGVrpJTlIjjt0QLlrnudoAerUnq4rit09ptqEnuEwhrnyXs4g9unBR5hAkY4AgNcH2GjnEG+/tO89V1H4DtTBWOMbQ6KTU82+2tt+UjeR1aFWmGnEjbN9tu/w9nlWM4ZrPbMeERO+DJtTNUS9J3tQSImjoB1jlzdZ469ShsTp3t0kbmcbNLraa2JP2BM8T27p6dzoYmPlLXG8jC0MuNDZxN3Hfru7Sp3Z/GYcQjLgHHL7ZrrAg20vr/tooy4Mkxu21oUja2EsNKLm35wQOroNJA8pWucl/uVQ92fPcs85SomBuHuY4PzeqjmG7+rZYdllofJh7l0Pdnz3L1+kp2YawiVpQhC6UBCEIBCEIGG0HgtV3Mvo3KFwjwKh7lnmtU1j/AILVdzL5jlC4R4FQ9yzzWopZ2QhClQIQhAiEJECFIEpSBBlGy1/VdHbU+rq8267QSGyuvKa102GTmK7g10bntG/I14Lrjs0cext1TdkfDaL5dX/u8i1CupHgmSE6nezr8m4+Jcma01tExy1Y/BjNCHQks6TYmAzc3oCBYx5cuugy3sfbHphtwb3yPU8jMPvJez5XvjB/R5WN07C9sh7b34pi7ZyjMhe6ija6+remGX7Ys2TyZbKYmqTYC500ABsABuAG4Bc856RHu7+5tVeW+nkz0kmvN5ZGA8GyEh1vGWgf9hVQ2lxRlSIWxtBOpDWtddmcgNgAJOYg/Bs0jJYA5r6dVTZ2OiktKx2+KQB7Tx3O/aLFfGzlBh1PIJBRtikB0lLpJA09bRI52TxhXp1FJ1vzBtb8Hieynp2Sm72xRtef7YYA77brHtossOL1XqqMOD3ZmveWgAZQYjd7HNscgiLrdHpEEFq2xjgQCCCDuINwfEVHY1gNNWtDamBsttxN2ubffle0hw8hWkTHzGNvqGVGJQy0nOEh4c97rEFsZDS4W1ALAASTqX+K+iPqXZX806znMeGntLSB9qncI2cpKRr2U9O2MPFnG5c5w6nPcS4jU6XUFi1OYTbgCdesEaLl6jcTWY8QiWf7GYnh1PE+OupmulE17vpWzfkwxrTF0jdhDg7/AHUjsBQ+qarEJKcc1Ac2WIjKC10hdGzTQWbw1AuBxV1p9mKGvjiqKila6Qixe1z4y7KS3p824ZtAN918OoBh0sboY7Qk2ytG4H2zT1niDxstbzXtm3PPn6JUXbkFksEOoDROcp4OMbf4ALWuTD3Loe7PnuWWbe0xHqSdx6Urqs+QMbr85PzBanyY+5dD3Z89y6OkjWKPv+5C0IQhdCQhCEAhCEDHHvBqnuZfMcoTCPAqHuWeY1TeO+DVPdS+Y5QmFeBUPcs81qKWdkJLoupUKkRdJdAqQpLpLoBASXQCgy3ZQfn1H8ur/wB3kWk7W483D6WWqe3PlsGx3tme4hrW34C5uT1ArONlR+fUfy6u/dpFoO2WBDEaSakzc282cxx3B7DmaT1g7j2Fc+SY7o21ZVi+2OLOhbUyGlY1wa5sLWtMzY33yPyFxcGG28ndraygDt5XfpGfRBWKfAccbBJSCgaQ6NkD6hkrM0kMZ/JtP5YMNgA3MWB2XS41UB7HWK/EH/Sw/iKtaVn4ohLi7betP/UZ9GF8+vOs352fRhOPY6xX4g/6WH8RHsdYr8Qf9LD+IreyxekDpRco+Iw3EczAD70xAjxgcE59lbFP0sX0Df5qHrdi8QhsJKNzSbkDnIibDjYPKaN2eqzoKc/97PvJ3Yq8biP7Cx+ytin6WL6Bv801ruUbEJxaSSM8NIWhM6bYnEZNGUbncf6yL+L04dyd4qLk0Dh/9sP4in9O0fIS2zG2mLSn1LSyQDKySSz4h7VgL3a9fV4+Ct+xnKA7EYpIZ4Wc80B2ZoIY9hOjg0kkOBtxtqCOpULB9ncXpXOdDSOGZpaQXQuabtc0EgvtcZjbxkG4JBsex+CS0JmmqenPLoWB4dlaTmcXvGhc51t192/Vc2a9YrMVmPpoJt+4mSmv1VHowtY5Mvcuh7v/AFOWP7ZVEj30+cNaLVFmtFgPyY69Sth5NPcuh7v/AFOW3Sfyo+/7izIQhdIEIQgEIQgZY4Pzap7qTzCoHDD+ZUPcs81qtL2BwIIuCCCOw71QWTyUEcdHUwTvZCMkVVFBJO2SJoswu5prix+UNzBwGoJBIKK2hMZkZlCeuOD4FV9QqvwkeuSD4FV/4+r/AAlKmpTWZGZQnrkg+BVfUKv8JJ65IPgVX/j6v8JDUpvMkzKF9ccHwKr6hV/hJPXHD8Cq+oVX4SGpTWZGZQnrih/R1X1Cq/CR64of0dV9QqvwkNSp2y5tXUd/j1b9tNIAtecy+9ef9sW5Q4DnYR6pdPDM+KWG+ZvSaM7Wua5pykFQ/wDTuIfrSo+tyfeWOTH3NHpKaYx6uBc34Q3jxj+KIayN+jXgnq3H5ivNhx3EP1nUfWpPvLicSrPj8v1h/wDNZ+xtE8SPUC5zztjGZ7g0dZ+f+BXmgY7iA0GJ1H1uT7yHY7iBFjidQR1eqpPvK3spS1bGq9k8hdzgB4a7hwCZ0cZnkbC3K9x3HiB1m3BZb6vqvj0n07v5pWYlVtuW18rSQQSKh4JB3i4K5J6Dc7mVdNwbPFTyc3TSOmc0EkkBzQ4DcCLXvrp9qcx1MrheaU3PvL2aOyw0JWBx1lS32tY9vincP4rqcVrP1hL9Zf8AzU/wV/HdpLeZqhpjkDXlj7dEht7nqB3Aqo1UkrDch395wNvnKzM4pWfH5frD/wCaP6Tq/j8v1h/81E9DbWomCdytO09SXvgBI9rPbr9o3VbXya+5lD3f+py83YXHNPOGtc+qne0sYwOL3Eu0uSdwAuepepNmcMNJSU1MTcxxtaSNxcB0iOy9124cc46RWZ2lJoQhagQhCAQhCAQhCAQhCAQhCAQhCAQhCCv7d+BTeJeXpd58ZQhAgX0EIQKlCVCBQvsIQgULoEiEHVq6NQhBsnI5/VP8X8VpCEIBCEIBCEIP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8NDQ0NDQ0NDQ0NDQ0NDQ0NDQ8NDQ0NFREWFhURFRUYHSkgGBolGxUVITEhJikrMC4uFx8zRDMwNzQ5LjcBCgoKDg0NFw8PFy0dHRkwKy0tLS0vLTctLSsuLSstLS0tLS0rLSstLSsrLS0tKy0tLS0rLS0tLS0tNy0tLS4tLf/AABEIAKgBKwMBIgACEQEDEQH/xAAaAAADAQEBAQAAAAAAAAAAAAAAAQIDBAUH/8QANxAAAgIBAQMICAYCAwAAAAAAAAECERIDBCExBSJBUXFykrITFDJSYYGx0SNCU5GhwRWiYnOC/8QAGgEBAQEBAAMAAAAAAAAAAAAAAAECAwQFBv/EACQRAQEBAAIBAwQDAQAAAAAAAAARAQISAyExURMiQZEyUnEj/9oADAMBAAIRAxEAPwDwxgB9A+IAAAAAAACGBAgAAAAAAAACgBx05NJqMmnwdOmVPSkm1jJ02rStbup9Jnvx+XTPD5Ny9d/SAHhL3JeFhhL3JeFjvx+T6Pk/rv6IB4y92XhYYv3ZeFjvx+U+j5P67+iGVHTk75r5qt2q3Wlu6+ImmuKa7U1Yzlx321N8XPMu8dIYAacwMAKAYAEAwAIAGAEgUFFEgVQUAgGAGQxgRogHQUAgHQUBIFCogQDoKAQDoKAQ4JZRUt8XKKa61fAKDpj34/Uzz/jrr4fXycf9evPa5SaSm9LTiuEFSjxpRiuk49XlaENRaT2utR8IS1Ixn8LV7n8DHaXKp4e36OWPe6D5TrQlnKOopelcnknbk5N/zZ6znvV9J4uHe+r7Gtone/V1V177a+VojU2nUi69LJ9TUpU11o8Tk31n1TZd69Kp6Xpc97ejlzvnR6Te9/CjeOe+jo9c1P1J+Jh65q/qT8TOcCxK6Vt2r+pPxM39bero6mnqvNKMpQct8oSStNPoPPNtP2NTuT+gibrjGOgo9i+c33IYUUkVEjKxDEImhlYjxAkKKxHiERQUaYhiKsZ0FGmIYikZ0FGmI8BSOegoqh0BNBReIYhYigovEeJKTWVBRriGIq9dZUFGuIYir1ZUFG2IYkp1Y0KS9nvx+pvgRqrcu/DzIzz37ddfDx/6cf8AVv2v/L+p5mvtWxR11Gc9Fa/De1a+DfBfM9KUbbXC4S3rjxR8y2nk3VjqvRlCb1XLcqbcm3xXWn8D1/k5bn4fQ+HhnK3Y+mzi+h1V8OvoJftS+X0MOSdl1dLZtDTnJOcIxU737vd7Vwv4G8ovKXy+hrPlz3fx8AAxfUNQZpmkbfk1P+uX0IUS5exqdyX0BWWIYm2IYnm16HqyxKUDXEaiKdWagPA1UR4ir1Y4DUDbEeIp1Y4DwNsR4ir1YYDwNsR4inVhgGBviGIp1YYCwOjEWIp1cNDSKSKSLWc4pxCi6HRK1mM6HiXQ6JV6s8QxNKHQq9WeIYmmIYkq9WeIYmuIYinVliZ68dy70PMjpxMtojzV34eZGeW/brp4s+/P9KCVx7JX+6MdDlHQ1NWejDUUtSF5RTddTSdU6fGiuprir/bqOPZ+TtLS1p68NKtSeVv0kmk27lS4K2eNua9pm5+XZDlHQlrPQU09WK3wTfGt6uqvpo1it8u3+kedp8n6UdeW0x0ktWVu/SSxTapyS62d0XXa3b7Rmb+Tdz8NKFiTmDkWM08RTXMn3JBkKcuZPuP+hCujEMTRIeJ5VeqjPEpRLopIlWIUR4l4jxFIjEeJeJSiKsZ4hia0FCkRiGJpiOhSMsQxNaFQpGWIYmtCoEeakUkUolKJqucQkPE0UR4krcZ4jxNFEaiSrGWI8TTEeIqxliPE0xHiSkZYjxNMQxFWM8THa1zV39PzI6sTDbo8zsnp+ZE5e2t+PPvxw2GQNCo55jyd5Cx5E0FFidjsrIhfQBF7LsJvmz7v9okclzX8VX8om4ucvV6cUVRSQ6OrwomhpDSKSBCoaRVDoixNDoqh0CJoKKodAiaCiqCgJAqhFEMRTFQRzKBSgapDSFIzUAwNqCiLGWA8DWh0FjLAMTWgoixniLE1oKCxliGJrQgkZ4nNygvwpd7T86Oyjl5U3aM31YP/AGQ32a4/yxwVzUS0VB81dgmTG91NHBrwbnqSWbcHo4xWrqxjT482LpnoGM9mhJ5Sim3Vu2rrsG5V47GWyaMY6m0OL1G3qJSynKUb9HB7k31NfTgdVE6OjGFqEVG3b+LpK38kv2NBmJu3SoU3uXavMi0Z67r0fx1Ir+Rpnu9mh0Oh0acCoaQ0ikgpUMaQ6ASQ6KSHRFTQUXQUBNCo0oVFIzoTRpQmgjJoVGjQqKjJFIixpljFWBNhZIvZYEWOyRrsuwsjIMhDsuxWRkGQi9lWFkZBkInZVnHysr2fVXWkv9kdWRzcov8ABn8vMhFzl644YrmoTGuBLDdACCxEpjJAQq0LUV4d+D/lCTKl+Xvw8yEK9gCbCyxyq0WjNMaYi1oijNMpMkWrGRY0xFq0MlSHkFqgoVishToTQWKylJoVDsLCVxgIDo8aqCxARadhZIWFqrCybFYWqsLJsVgqrCybFYKuzn25/hT7F9UaWY7a/wAKfZ/YM31xzdBDZT4GbZl2p2IVisrNVYWTYWCtEy3+Xvw86MUzXoh34eZAzXqWOyLCyuNaWNMhMaYWtLHZFhYK0sdmY7EWtMh5GYxDsvIMiAEOy8hZECETsvIWRACHZkAAaczAAI0QDEACAApCbGSwBsVgyWwh2c+2S/Dn2GjZz7W/w591hc98TLgZM0lwMmyOm6LFYmxFYqrCyQESrTNU90O/DzIwRt0Q78PMhrXHXoqRSZimWiubRMpMhFIgtMZKGgqhkjAoZIwp2AgCAQxABJQiozGAwgChgRRQqGAVNCooAJolo0oKAxcSHE6MRYAcskc21exNf8Wek9Iznsl8GFz0ec5XFMxZtqcm7RHdpvScehSyTX7Gf+P2vq0PHP7EuNbx3fbUMRfqG1+7oeOf2F6htfu7P45/YvbGfp8vnEhZXqG1+7s/jn9h/wCP2v3dn8c/sO2H09+cRZte6C65r+N/9ELk/aurZ/HP7HXsvJ2onlqShfBKKdL9xu1c47x9d1tHeaxRcdCi1EMpSKSKodATRVAMAodAAAMAAAAAEAwAQhgEZ0MQFQxiAKYABABQAFFBQAFOh0ICCgGAXEsVgBGhYWABBYrAAApDAAFQAVkqCgAoKGIAhjAAAAAAAAABAAAMAKj/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQDxAPDxAQDw8QEBUPEA8PFQ8VDw8NFhYWFhURFRgYHSggGBolGxUVITEhJikrLi4vFx8zODMsNygtLisBCgoKDg0OGxAQGisfHSUtLi0tKy0tLSstLSstLS0tLS0tLS0tLS0tKy0tLS0tLS0tLS0tKy0tLS0tLS0tLS0rLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHCAH/xABTEAABAwICAwYPDAgDCQAAAAABAAIDBBEFIQYSMQdBUXGRsxMUIiMkNDVhc3SBk6GxshcyQlJTYnKSwcLT1BYlM1SC0dLwQ4OURVVkoqPDxOHx/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAECAwQFBv/EADYRAQACAQIDBAgFBAIDAAAAAAABAgMRMQQSIUFRcfAFEyIyM2Gx0RQjgZHBQqHh8VKSNGJy/9oADAMBAAIRAxEAPwDuKAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICD5dAug+3QEBAQEBAQEBAQEBAQEBAQEBAQEBAQc70v3STS1DqaliZI6LKWaUu1Gyb7Gtbm62YJuMxbNXimsao1hBDdYqd8UvmZ/xlHLK2tO9991if/h/MTfjpyya07333WJuGn/08346jlnuNad74d1qXhg/08346aT3J9jvUt3Vp3B2o2Bzmi9jBMASSGgX6ObZuCmKzMpiKz0iUrHpPj7rkYbG5vwTeNl+/aSoDuUBX9XLG2WkTpq+yaVY8wFzsLj1W5k69Ns/1KRitM6RCnrq+f8AR+l2PHZhkXeu6nP/AJIU+pt3fRS3FY4nSZ+v2Uu0r0g/3bD/AND82nqbd30T+Jp51+yy7TPHx/s+Dkh/Nq34e/d9Foz1nzP2Wnac46NtDB9WL84p/C5O76fdb1sef9KDp/jY20UH1I/zafhcnd9PumLa7ef7B3R8XG2hi5I/zKfhb930WiL90LL91DFBtooh/Cz8yq2wWr1mPovXHkttEfuncB09rH2fWUjWQl1i+O12i175SPB4iWnI2vsWNeW3uyrlrfD8SNHRGuBAINwRcEbCOFQPqAgICAgICAgICAgIPNWlL+yKg5kmV2zMucXu9JJW0bMe1r+KSdAe6J2cjDqvGQYHja0HMuts2DYVEzK0RVhHEXfF9NvuqNZW0r3KDiTvi+n/ANJ1R7KqCt1yGatnOIa1xd1IJ+Nl6rKOqfZbbueRa2IMjkGyaIOadms1+tblar07Ux01d6K3edO7AxY3bHH8pIAfot6s+lo5Vti3me6FZnRfjiVZsxpj16y+vjURZtFGr6ZYDNWQtjgqHUrmyh5e3X6toDhqnUc07SHbdrQptraNInR0UiK9jIkpCGhpJcQ0AuO1xAsXHjXRWxEIirjIWsTq6KQw3NujohhVVPcKtq6w0pbSUjo1MRFURuzaWHI8IBIPKAvHyYfV5dYb8VaMmCdeyHUdHXE0VITtNNCTxmNqpO7z42SKhIgICAgICAgICAgIPN+KwiTENQ3saguy23a57x6WhbVYy1jH261bNnq3mkcTwWe7L0KJ3XqoqaBzCxspY5znar2McxxY+9i27ctbLevvKJjQidUTVt1HFu+HFvlCamhEx7XROcwta8gscb2cAd7kUapdG0N7t8bqXmwr03lMbfo7cVu4JjqwZhrVEY+JG53lcWgeyVrWdMc+Klo1nTz56M8BYtoqFqarxVYkjVolbRiyxK8StFUXX0VwbLSt2tY0QT4bGxW2raFLobhNUrmG09mzH5p9krmzxqZbflzHyl0nRrtGj8Vh5tq86WEbJJQkQEBAQEBAQEBAQEHnOs7p/wCfJ6pVtVjPn92qaRwl1VMQ7V68/vj3xvlvqLR1WrLBp5nseHu1X6t9VhFo77A4jabbRxKI1W1hjyA3a4Wc5rtazxdruEOG+CkohdrcRqKmVslQ8uLXdSMrC5JNgMhmVEzM7piIjZvWhB/Xf8VLzYV6bymNncCVs5Jjqx4Repd4FntvWkz+XHjP0hWtdbefmzrLHVvo+kInRbc1TqljSNVtV4hjvZdTqsiq+jvmFrW7Sso0x2Wmq6/Ss63N9B3slZZZZ5vcnwb1o12jR+Kw821edLONkkoSICAgICAgICAgICDznWd0/wDPk/7q2qxnz+7V9Ib9MT2v+1kJI4ASSb7wCraV4qjY2uPQxbVEmbHO1rOBOrffyuDsUdYT0novUeHvnqIqZrhG+V+prOBIYACSbDMmwyG+VJEMvSTRx1C+I9EEjJHWF7awda97bQOMBVTo2fQfu0OOk5sLSnaRs7cStnNMdViI2qW/PiI+q4H7ytPw/wBU0j2klZYtdCyGikhTqnRjytVolaGMQrLrcjLpqIqrp7ZhaRZpErUI61N9B3slVyKZvcnwbpo12jR+Kw821cMs42SShIgICAgICAgICAgIPNeIVbRXNlb1TXT9TbfbI57Qc/pXW0MZhEYhWvgqqksDSJDLCddoe0se86zSDlvCyrO7SJ7GH0Vskwc+SQxtc9zdcNL2tJvq6rTbMht81Ouu6IiGLIx0slwdV5drtcCWlrxmCCNmxV0Tr2r2KRVD9SWoqBPqWay77lod1Rs2wsc8755JonXVtegp/XWXDSc20FXpvKY2dtJWrCY6rMuUkTuAlvkIv91Wj3ZhNY6pXvrFroIaKSgtyBTCWG8K8LLZKlLHnAIUwmEccmTfQd7JU22Rm+HPg27RWQOoKMtNx0rEPKGNB9IXFO7OuyVUJEBAQEBAQEBAQEBB5YxNnUgG4Oo0WzDgRfyghbMkc6aTMuDZHE3Ly4tceOwNyo6p6LLnv+Tb9d38lCei0XPGYY0cT3fyUJWZXyHaQBe5F3EEjhvtUJbXuVG+JMJ2mSIk5bdYrTH2ph3glas5jqpkFwQNu0cYzCmJ0lEM6mmBaD/YPAs7R1arheEFp8wG+piBiy1oG+p5VorLDfXAprENYx2UmdOaD1csaedW5oWjHKPMt2y/RPqKibxPRXiMcxjmfk3HQkWw2iuCOxo9v0Vyzu5q7JtQsICAgICAgICAgICDyziUhd1TjdzmtcTwk3JK2hlKPKgW3IlaeVCWPKolLaNynuizwkXtOV8fatDu5K2Ul9UCgvLLke9Pvh8U/G4uHl4U3Xr3NbxrHJYHEWy3u+FpWaN4w69UFJpe4nPJZ5bzWOkOjFhpO4NItbaV5GfjckdNHq4eBpOzKpsWBO1eZk43I6p4KIjpCYgrWkbVFPSFu1y34bTsY9dWgBddeOmUU4Vg0FZr9FHePqK6OGzTe7H0hhimC3hLomhLicNor59jRjyBoAXdO7wK7JtQsICAgICAgICAgICDy/pBEI5ZI231WOLG3zOq1zgPQFrGzKd0MSgoJUJWnFQsx5SolLaNyo/rGPwkXrctMXamJiOsu11GMU0Zs+eJpvsLm3XZHD5Z/plyTxeHXSLa+ETP01Wf0hpd6W44WtkI5QFE4L9un7wmOIjsrb/rP2Z8VZG4Ate2xFxmBcLO2K8djWuWs/Lx6MXEcNjnaW5HgAtke9/LZxLG0T2uzDmmvg5/jmjj4iSBdvCPt4FlOaa9LPRpWuSNatddC9hyusMsY8kdXRinJjnovQ1Dhwrx8+CI2e1w+fmjS0M+LGdXauL1HV0Wx1laqMXD8tZdFMejHkiNkpo6SRIb9Tvk8NjZvGf58C7+C09ZDx/TM6YJj5S6/onGG4fRAbOlYjysaT616kvmq7JZQkQEBAQEBAQEBAQEHlfFZnPJe43c8B7jkLuJJJy75WrKUYSiVtxUJW3FQljylQls+5ZG12IMa4AtMkVwdhzctMUzEzMJ7HeIaWCL3kcbM/gtaPUumYvbeXPOesSS17WKPw9rbEcZjjeWs4qynqZo3CX3ptJETtad8Lm4qufFT2dYl34rY8nWOq9+j8Ucgj6YmgL84pGvOo7vWOV151fSHEROk21j5xq2jFTTWtWRUwVlMOvhtbT7DKwWmY3hcNhC2nia2jS8afT/AAtirEz7E6SxKjR6GdvRYCC1299lt4rjz8PeY1xT+j0MXGck8uWOqP8A0aGwt5LLw8l+IidJrL0K8ZTeHw6KRnN3UjfLiAB5Sq1yZO2YjxmFp9IabRqjMQiwulGbumpRsigIIv8AOfsb6SumnPbtmfntH3n9I0+cLVy8Tk2ryx3z9mHgFfJUSvc5rY425RwxghkYseHNzuFx9AyXscBStOkbzvLyPS+O/q5m069HZdC5C7DaIuNz0tGPIGgD0BehO7wq7JpQkQEBAQEBAQEBAQEHlXF4jG4xutrR9Q6xuNZpINjvi4WrNFkqEqHFQlacUFiUqEtp3LMsQZ4SL1uWuHeVMs6Y5l2iaU3PGV61axo+PzcRebT1Ykzb7VrXow55ndrWOYSHjWbdrxmHNyN1vpXJXlts9Dg+Ltit0lg4dpTqN6RxQOfTk9bqmftad+87vhfNcd6NthtzU2fX8JxkX0mN/O7d8JxqSl1IapwnppBenrGdUx8e8Sd/LbvjvjNeby9PZ/b7O+2OuWOavS3cy8QhFMRVQWNO8jozG5tAP+I31/8A3LP1nqva/p8+f7NMX5/5V/ejb7SxsdpOmY5I2PLTLC10b2Eg3a4nIjvO9K9jBNLYvaiLRr29d4/w8+9JjJ3T9tXLqjBKp0jY6jWeQb9USbRtzLuWw8q8HieKxRM1xxpWvSOzq+n4LHNac17RM2mNdO6NmPPBY2XJW+r2prqndEo8pT/fvSu/gre3DwvTdfyJ8Jdk0NiLMOomm1+lozlwFoI9a9Wd3yddkyoSICAgICAgICAgICDy3pQeyZ/DSc49aM0G4olbJUJW3FBVEAA5xztkONQls25rLfEIeHXjvx3cFth3lnm+FbwdhkGZ4yvXjZ8Tkj2p8VtwUwrEMSojutay0rDVsfwpsgOWa2mIvXls9ThM1qSgcB0jkw1xp52Gow+R3XID76I/Kwn4Lt+2+vmuO4OaW1q+p4biNYifP+nSInFkHRKaXpnD529Sdtgd5w+C4Lxc3tRMbT53+b2MVq3tGvS0eenfCO0Zry1zqZxJNO8yQk7TSSHqm/wuseLiXXwGbSJxz50T6Qwa2jLHbv4trmpWytkIA1w0Z75bwLyPSmCM1ptX3q9fFjhy2xTWJ2cxxekLHuBG+uLFfWH12DJF6xLM0WbYS8X3SvV4GfzI8Xk+nPgW8Jdi0Y7Qo/FIebavZl8fGyTUJEBAQEBAQEBAQEBB5Y0nPZNR4aTnHrTsZoQlQstkoLbioSpEtsjs+1BtG5m8HEYrfKR+srbDvLPN8O3g7PIMzxletGz4y8e1PituClEQsSBXiWtao6siuFrWzqxR1aVpFQBwJsubjKxar6DgtdmNoJpW7C5zFLd1FMbSMOyNx+GOBfM58fbH7d/+Xt49Jjkt07p7p+0ugaU4UIxHiVDZ7W9c1W+9kjI6to4Db4PIvP0msxek9PPn6PQw5+aJwZt/PmJTOAYpHI2OaN2tFI0Fp+adrT3xmPIqcZM47xn09na3y+fg5b01ia/sjNMMLBOu3YcwRsXn5acl9a7S9T0bxM6csoLAIS3o1+A+yV6Ho+dckeK/pu0TgnT/AIy63ox2hR+KQ821e5L5CNkmoSICAgICAgICAgICDytpOeyajw0nOPWiiDJUJUEoLbioSsvKDadyzujH4SP1uWuHdTN8O3g7dJtPGV60bPjr+9K05SRC09WhtWrCqArau7Dj1lr2KRXBWGe/R9BwmPRpuLYfe+S8LLu9f1esJrc70ydRP6Sq+uUUp1LOz6Hf7P74uPJXl1vEax2x3/PxW5fWRFJ6Wj3Z/iU3iNOcErRqu1sJrna8bjsppnW6q+80kgHguD3lpX2q9/8AMMaWmJ69+k/KftP1bZ00C3Ukzbw8C8biPR969eHnp/xnb9J7PCeng669J1jdbGHsEUz2EHqHHkaVPo29ozRXJWazrG/nqpx+e1sNonuluujHaFH4rDzbV9HO7xI2SahIgICAgICAgICAgIPKek57KqPDy849aKQhCVCVBKhK24oLL1A2vcs7oxeEj9blth3lTN8O3g7dJtPGV60bPkLR7UrZCatK0W3hNXZjw6sOoCibaPW4fAiKuO64s93tYKaIKtpr3XmZJejWGt4nh4IOSxm2iZxczdsCqhiOHSYZP1bxGX0pO3orQbx3+cLi+8TdcGDNOPJOOdpnWPlPd+v1dHH8JHLGeu09Lfd90Lr3y0gZIdaWnead7je7g0AsfnwsLeQrvvHa4cMzpyzvHRstOesz+Dd7JVsPvQy474U+Et40Y7Qo/FIebaumd3lRsk1CRAQEBAQEBAQEBAQeUdKD2VU+Hl5160VhCEqooJRK24oLT1A2vcr7pReEj9blth3lXJGuO3g7m5mZ416cT0fN+q9qVBao1dWPEtSBNXdixMKcLK1np4qI6oauLJL0McIupjXHd11QeIxZFctpdNIYWCVboZmuabFrg5p74K8/iqaxrD1OG0yUnHbaW4QMazEKl0eUVbBFXMaNjX3eyUfX+xejhyeswRbz56PnuSceWaTvHT9tv7Snaf8AYz+Dd7JWuD3oY8d8KfCW9aMdoUXikPNtXVO7yY2SahIgICAgICAgICAgIPJ+lJ7LqfGJuderqwhHFQlQSgtuKC29Qlte5V3Th8LH95bYe1Fvct4O8vGZ413xLyOTrK04Jq6KVWJFEy7MdWHMsby7scMCcLkvLsoj52rlu6qIeuj2rms6Ktaq2lpuFlNebo2pkmk6w2rAq7okdG8++illpXeDmZ0Vt+J9OfrqOG9nnx/rDDjo1y0zR/Vv4x0+zb6b9jP4N3sldeD3oedx3wp8Jb1ov2hReKQ821dc7vIjZJqEiAgICAgICAgICAg8m6Unsup8Ym516urCEJUJUEoKHFBbeoS2zcp7pweFj+8tsPb57Sfdl3p+08a7oedp1WXo3pDHkKpLrpDElWN5dlIYcoXLeXXSGFM1ctnRVGVUaxltVB1lLe6rC8sXDqowB2dgJ4HHiErL+guHlWdP/Irp2xMf2XzVieEm0/0zEun0461P4N3sldHDz7cPK4/4U+Et60X7QovFIebau2d3jxsk1CRAQEBAQEBAQEBAQeS9KT2XVeMTc89XlWEISoSpJQUFQLbkS2vcrP6zp+/Mz1PW2LtWiPZt4fy74/aeNdrgiOqy9HRSGNIsrS66VYsi572ddIY0gXNaXTWGLK1YS2hgzRrOWkSjqqHIqs9F4atizetT/wAHLrhc2v51Z8fo7bVj8JfX5fWHU8Km6JSPkH+JT6/1o7/au+kcueY+f8vnuKtzcNr/AOv8N/0X7QovFIebauqd3lxsk1CRAQEBAQEBAQEBAQeSdKe3Krxmfnnq8qwhSVCVBKCglQlQ5Bte5Z3UpvDs9mRbYe1evu28P5h36TaeNdmrjivVjyKsy6sdWO9c9rOylWO8LntZ0VhjvCwmW0Md7VnLSGNIxVleJRmIGwKyvLakNLxZ/WJj85g/52rCka56/r9HZxE8vBXn5x9YdM0S7lt71Lq8jSB6l3Y51zft9IfP8ZGmG0f/AF9ZdJ0X7QovFIebauud3lRsk1CRAQEBAQEBAQEBAQeR9KD2ZVeMz89IryrCFJUJUlBQVCVDkG2blfdSm8Oz2ZFri7WlPdt4fzD0BKF08zOtOrFkCxtd1Uqx3hYWs6KwsvCxmWsLDws5aQsuaqrwx5lS0r1a1js9mlYT1l1UjRqOIZ0rvnSD13+xZ4/j/o6eKjXgtO+Y+rrWjkBZhoaRYikBI4HGO5HpXXgn839XgcdOuKZ+U/3dB0Y7QovFIebau6d3kxsk1CRAQEBAQEBAQEBAQeRdKD2ZVeNT89IryrCGKhKkqBQUSoKDbdyvupS+HZ7Mi1xbS0ptbw/mHoKXfVps0rDFkCytLesMd4WUy1hYes5aQtOCovCy9VlaEfWPsCsrS3pDSdIqjaFnDfaEfBTGfpenG2WUA2+LexPk1r+RZ06ZJs6eInTh6x+v8fWYdkDAIJwMgInADvapW/C+/Hi8DjvhT4S2/RjtCj8Uh5tq9Kd3kxsk1CRAQEBAQEBAQEBAQeR9MoXR4hWxvGq5tVPcHgMr3NPEWuaeIhWmURCCJUCklEqSUFJQbNudVQhr4JTm2OaNz7bQwlzS7yaw5QtMc7tMfbHyehhM141mOa9rsw5pBBBzBySW1Vl4WcxLaJhYeFnMS0iYWHtPAqTErxMLLweBVmJ7l4mGJM+yytq1qhcRqQAcxyhYy6KNCxqoDnbRtVqwm9mx7n1IJKkzG2rTx2bf5R1wDyF/IFjMaR4+fPivxOTWsV89PvM/2dCq62OOGUOc3We0ta241jcZm3ABnddHB1mbvF9IXiuOYbto9EWUdKx2RbTRNI4CGNBXfLzY2SCJEBAQEBAQEBAQEBBrek2guHYi4SVdOHSgavRo3PjlLRsBLSNYcd0EB7jGDfJz+ekQfPcXwb5Ofz0iB7i+DfJT+ekQfDuL4N8lP56RBVS7kmFwvD4mTtcMv2ryCOAg5He5Ad5TE6BXbldDM7WMlWzvRytHp1bnykq3rJW55Y43G8P/AHjEfJO3+hPWW86nPKsbjOH/ALziXn2/0J6y3nVPPL6NxrD/AN5xLz7f6E9Zbzqc8vnuM0H73ifn2fhp6y3nU55BuNUF+28T4umGfhp6y3nU55UncXoP3zFPPx/hp6y3nVHPKh24lh521eJeeh/CTnlHMsO3B8LO2oxDzlP+Eq6oTmju5bh9EQWuqJ2g6wZO6Is1uEhjG62wZOuMk1RpG7eFCRAQEBAQEBAQEBAQEBAQEBAQfLIFkH1AQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEA8QEA8QEA8QEBAPEA8NDw8QDRAPFREWFhUSFRUYHTQgGBolGxUVIjEhJSsrLy4xFx8zODMsNygtLisBCgoKDg0OGxAQFy8lHSYtLy0tLS03Ny0tNSstLS8tLS0tLS0tLS0tNS0tLS0tLS01LS0tLS0tLS0tLS0tLS0tN//AABEIALgBEQMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xABNEAACAQICBAcIDQsDBQAAAAAAAQIDEQQFBhIhMUFRcYGRsbIHEyIjYXSh0hckMjM0NVJThJKzwdEWQlRiY3JzlOHw8RQVoyWCg6LC/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAIDBAEF/8QAKhEBAQACAQMCBQQDAQAAAAAAAAECESEDEjEEQRMiUZHwBRRSYXGB0TL/2gAMAwEAAhEDEQA/AO4gAAAAAAAAAAC1ia8acJTm7Rirv8F5TBjja0vCUIQi9qU25Tt5bNJenlO6c2kwRjxVb9l0P1jx4yt+y6H6w1/ZtKAiHj637LofrFEszrLgpen1ho2mgQMs4qrgpen1ih55V+TT/v8A7jvZXO6NhBpubaaSw+onSVWc5KEKVJTlUnJq9lq34Nu7cXKGk2NlG7y/Vb4JV6SfobHZXO+NuBqv5RYz9Bj/ADEB+UGO4MDD+Zgd7Mjvx+ragar/AL/j/wBAp/zUPwH+/Y/9Ap/zUPwOdld742oGoVdJ8bFNvARst/tmBapaX4uXucBF/SYHezL6OfEx+rdAaTlun3thYbGYSphJzTdOc2pUpJb/AAo3js3uzduFI3YjZpKXYADjoAAAAAAAAAAAAAAAAAAAAAjM/V6SX6yfpS+8t4+qoK7srLhajFJK7bb3JLey5nvvfOu3E03upYnVo06bk4069bDUKkk7WpTnJz28kFzXO63r/aF8sTF6YVZNPC4Stiabk4xquUMNRqNb+9yqbZF3KdK4YipLDVIV8JjYeFLDYqChOUPlQdrTRxrTHGSxePxirVNRYepWoYWg0+9Qp0qmpGjHbaHgxbv+c1xsv5TmNZ4FVpzbllePwccJUk3rKFZVO+YZS4YeKT1eC74GTmWvZy4y8O90qVSW6XNJK3Si1JvamrNOzXEzWdONJsfhsTRpYGkpU3TU7yoyqKvU12pUddPwGkotbNus9qsbBGo5Sbe9pX5n/Uux5vhRlxCZaLk2W2y6RXa90fw673WrSSc54vERjLhVOOpBRXF7hdCKMnyzEUq+LqVcXKvTrTUqNKSaVFa0nZXdlscY2SS8C72tmZkK9rfScT9ozNSKsYnneSKLkUIouRRKowSFipIqSIWrJGBmsLpL5SVzGw1DVJerRT2mJXdkMbtzPjlhY3DU60XSkk7xla69zLVaUl5dvWTWhdedTLcBOo71JYTDucnvc+9xu+dkPhoXqJ8vUSugvxZgPNaPYRDrSTSXp7bLtOgAoaQAAAAAAAAAAAAAAAAAAAABGZ/73zrtxOb93SXtSC4HWoX+rW/E6NpDLxaXG1b68TQO7bgp1MDOcFfvMqVZpb3Ti5Rm+ZVE+RMlP+oXy5Bis3wmJjGWNwtaWIjFQlisHiIUZYhRVk60JwcXO1k5Rs3wmBmeed9jQwtGjHDYSjV75GjGTnOdaVk61Wo9s52VlsSS2JIjlVj+em1qpRafuXdX5eHpKspwU6+Jw9GCbnUqxilwqOte75FdnEtvpqKi09svq3S2PhLUEk9jvsfWiRhU1IS1FeMt/GiKpe6l5Eulv+htxtu2PKSaXJstNlU2WmycQSOQfBvpOJ+0M9IwNH/g30jEfaEjFFWPhPPyqii4keRRWkctdxjwt0cQpSst1tj4yqvC8ZLjRiU7a9K3FbqX3Mh5WThmV5bCFxdd3JjGSSW3i9Jr2Imm9hPpRV1b7MnBV7zXI+omtBvi3Aea0ewjXsta74r+XqNh0H+LcB5rR7CIdeasWenu5U4ADO0gAAAAAAAAAAAAAAAAAAAACA0pk70FweG7eVOFutjNqCqR1XxbHsdtltz3rgseaVb6H/k66Zcxr6kT/irvu5VmncowlScp05VaGs76lCUHR8toz2x5LtIk9G9C8Pl95Uac51ZKzrVpU5VLcSs7RXIbjUZYbNOOMnOlGWVvG1qlVqRVkkvLN3tzLf0ooUbX4W3dt72+MuSZZkyyRXVMmWmyqTLbZKIpXR34L9IxH2jJOKI3Rr4L9IxH2jJSKKJeF2U5VJFaKRe217Etrb3WI1KRTiKqhFt7rPqI+EvDg9yUYvk4X95r2caQd9qOMHalB/Wd7X/vgRKUcS5xf6sIRbXG/wDBZ8OzyovWnOvZjZ5mblNJOyuYka2wsV6WtNt7S7CKNcwkxkjz51M8sray8sl4xcj6jZO5/JvLMDf5iK5k2l6EjWssj41cj6jY+578V4H+Cu0zF6rzHqej8VsQAMjYAAAAAAAAAAAAAAAAAAAAANf0rT8S+Ba+3ytw/BleO+4p0rqW7zG2/Xd78Thstz+gY59SJ/xV33R1RlmTLlVmPJmuM1eSkWpM9ky3Jk0FE2WmyqbLTZJxPaMfBfpGI+0ZKxRF6LfBfpGI+0ZLRRkjRrl7Y1XT/N3QoxpRdpVb341Bfi+o2tHLO6hUbxSV9kacYrl3vrLejjvJHqXUYei2X/6ycnOTjRpSTlbfNrbq+TetvlN+/wBT4OokowirKK2JHPdBMwVN1aT2a7U4+VpWkuhJ8zN2qO61o7eNGnt3eWDrZWcRROjserwmPTTvtL9LExbsnaXEy9Jxe9WZYplXcvgu+LkfUTnc+i1lmBureIi+ZttehkHgJJVFt4H1E9oDU1sswLta2HhH6vg39Bh9X5j0fQ3ip8AGNvAAAAAAAAAAAAAAAAAAAAAGv6WU34mXAtdPj2uFuoY99SMjSf3nnj24mLj31Isx50ry90ZVZjzZdqsxps1xlryTLU5Hs2WZMsiLyci05Cci3c642fRT4Iv4+I+0ZLERol8EX8fEfaMlatWMIuUnZelviRjjTeFVWtGnFznJRhFXlJ7kjl+mFJ1lCqr3km9v7zT6jZdJszkqbe52eovk+Xl8pDV3rUI322m2v3ZJSXWzX0ce3mqMsu+cNEvqNOPuk7prgZtuSZ05Rs3tW/8AE17OMNqSutz2mFg8S6ck1z+U1yc6qm4TKOiVaSqK8XafWR3+8ypvUqJtLZf85fiWMHjG0pRezq8hbzW1eDlHZUj7pcLLZh9VM6c8J3KcVGpUi4SurPqNz7n0GsrwF+HDwls4pbV6Gcc0Yryjio2bWyV1wbjs2gT/AOl5f5pR7CPN/UJqxu9H0+yVPAA85tAAAAAAAAAAAAAAAAAAAAAEPpR7zzx7cTCzB9SMzSn3jnj24mBmD6kWYeyvP3RlVmLORerMxZyNmLLVMpFqcj2UizORYi8kyi55JlNzrja9FJqOC1pOyVbENt/xGYGa5orupN6sI31Y9XOyOpZoqOBjfcsRiLR43r329Jo2eZ5Kq9r2cCW5FfR6W+an1LcrqL+e506jd3tfAtyRL5RiXPBU2961oc0XZf8ArY0GM3OXoN0y2pak4LdBRt6U/uLpzlueErjrHRmtJTp34Ua06RsyneLXKQdeNpNG248bZ5dcGX4x03+q96M/NJOKVam91tZLc48ZD1dhIZXiVOEqcuDj+S9n98pLC+zn9q8lmpYmnUjwqV15dVnaNAfivLvNKHYRw7R+DpY3vT3Wna/FZncdAPivLvNKHYR5Hrr80lbuh4T4AMC8AAAAAAAAAAAAAAAAAAAAAQulXvD5Y9uJG5g9vMiS0r94fKu3Eicwe3mRbgrz90ZWZiTZfryMSbNmMZK8nIsyZ7ORakyaLyTPEylsRYELpDiWsLCPFisR/wDL+802tNs2fSV+Ij51X7MDVd7HSvy6abGZllLbfiNnyr85ccX6Nv3ENg6Vqd+Mmcg8Kpq8LjO3LqM09uoqt3XsJWbRGZgrSvxmdWlaVzEzKPg3NcnyqbOUbiJ7CnKq1qqXGmixVlsKMC/GR5TPLrKOabNRp3xFGot6Uk/q/wCDsugHxVl3mlDsI5HlSvUS8kuyzrfc/wDirLvNKHYRh/UprONnp78rYAAea0AAAAAAAAAAAAAAAAAAAAACF0r94fKu3Ehsxe3mRM6V+8PlXbiQeZPbzIu6arNHYi2r/e/Z/UwJyMzFJakXZXbd3eV972W3cRHTka8PDLkplIttnsmUNk3HjZ7FlDZ7Fga1pRLxEfOq/Zga1QV5JeU2HSl+Jj51X7MDXsD7q5Ho3xGnLw2F2UEvISOiUvbVDyzS6SBnXJXR+pqVFU+RGcl+8ou3psehnJcbpRjNWf5e4kV4XpPkKZGUqfi3yF1unZjtqNV7zzBvw1yjF7JMx6FS0jNf/UQmO265HPx8OSXUdg0A+K8u80odhHEdHq168OSXZO3aAfFeXeaUOwjH+pXeUaPTzUqfAB5jQAAAAAAAAAAAAAAAAAAAAAIXSv3h8q7cSAzN7eZE9pZ7w+VduJr2avbzIv6SnqI/FT8Ulfbrbrrd4XBwcJGSZk16rtq32J3t5TDkzRjwoy5eNlDYbKGyyIvbnsWUHsTrjV9KX4mPnVfswNewrsbDpQvER86r9UDW6ZT07y13wzqUruxtNHDamGnN/nShSj+9snLoSX1iByLCOpNWV9qSXG3uRtek7UO8YaLTVKLlJrc5ye19foN+OW7MUJh8tyRECU1bU3yEZR3ola7tDmL8ryYThouZ+6fKR8JbTNzWXhPlItyKM7yhI2fRir7YhyS7J3zuffFWXeaUOwj510Uqe2Yckuyz6J7nnxTlvmeH+zR5/rMt2LunNNhABiWgAAAAAAAAAAAAAAAAAAAACC0xusNrJXUZR1rcEeB/W1VzmsZpioytJPY0joVSCknGSUoyTTjJJxae9NcKIeWjNC+x1Ix+RrRlFfXTfpLcM5FeeFrnFbELjRjyrrjR016LYf8AW6KXqnn5K4b9bopeqWzrRX8KuYOsuNFPflxo6j+SmG4pdFL1Tz8k8LxS6KXqkv3E+jnwa5d35caKo1lxo6e9EsLxS6Kfqnn5IYXil0UvVO/ucfofBrhWlE9SklLZF4mrJS/NtKEGr8XD0MgaEVJpKUdv6ysfRWM0DwVZJVFUaXAnCPTaO0wvYvyz5uX/AB+qVTqzG7i6S61Wj6MYajh6Xf51aV9uonOF722ze3g3L/BAYzHxq1J1HOPhPZeS9zweg6t7FmV/NS/4/VHsW5X81LlvD1S3p+r7Lbr8+zuc7sZi5RhcTDW93H60TOx2Np6r8OG75UTpHsV5X81Lph6p57FWVfNT6YeqWfv7vfb+fZGY8afP2Y105PaulGC5rjXSfR/sU5V81P60PVPPYpyr5qf1o+qV31lvt+fZyYOB6M1vbMdXwmozdo7beCz6e0QwEsNl+BoT98o4WhTmuKcacVJdNyNyXuf5dhKiq06Dc4u8XUlrKL47buk2kz9Tqd92njNAAKkgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTEhMVFhUXFhgYFhcVFxUaFxYYFhkYFhcXFRcYHSggGBomGxgVITIlJSkrLi8uFx8zODMtNygtLisBCgoKDg0OFRAPFS0dFR0tLSstLS0tLSsrKy0tLSsrLSstKysrKy0rLSstLSstKystLSsuLS0rNzcrKy0zMzcuK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAAcBAAAAAAAAAAAAAAAAAgMEBQYHCAH/xABNEAACAQICBgYFBgoJAgcAAAABAgADEQQhBQYSMUFRBxMiYXGBMkKRocEUI1JisdEIU3KCkqKy0uHwFRZDVGODlMLxJDMXNERVc5PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAdEQEBAQACAgMAAAAAAAAAAAAAARECMUFhAxIh/9oADAMBAAIRAxEAPwDeMREBERARElYnEJTRnqMFRRdmYgAAbySd0CbE1tpjpQNyuCw5qgZdbU2gp/JRRtEeJXwlmwvSxjFb56hRZfqdYh/SLN9kDcUTFdWdfcJjCEBNKqdyPbtHkjDI+GR7plUBERAREQEREBESRi8ZTpDaq1EQc3YKPaTAnxMfra66OXfi6X5p2v2byV/X7Rv96T2P+7AyWJjX9fdG/wB6T2P+7I0150cd2Lp+e0PtEDIolBgdNYatlRr0qh5I6k+wG8r4CIiAiIgIiICIiAiIgJqPX7WRMRUantf9PSa1r5Vai72PNQcgOYJ5TOdfNM/JsK5BszgqDxAt2mHlkO9hOYdL6ZdmIHo8IGcHW2jTIFrju+Ek19J/K6vYpPsBGLMEPZ3dpyBkLAi5yuRLf0can1dIVsjs01salQj0QdwHNjnYdxM6N0ZoLD4ej1FNAEIs18y9xYlzxMYa5xq0yrWuct1/hym1OjLXWpVf5JiW2mK/MufSJXMox9Y2zBOfZNycpr3TuDNKs9M71ZlPfski8kYCs1KolVPSRlZfFTceWUqOlYknB4latNKi+i6qw8GAI+2TpFIiICUel9KUcNSarXcIi8TvJ4BRxJ5SprVVRSzEBVBLE5AAC5JPAWnN3SBri2PxBa5FBCRRTu+mR9Jt+e4WHCBkus/StiKxKYUdTT3bWRqN57l8s++a+xmkGqMWqVGdjvLMWPmTnLeXLdw5T0JLiamNWHfIetHf/PnPLRaMNe9YO/8AnzjrfH+fOLRaMTUQxHjMm0Dr/jsLbYrllHqVe2vhmeyPAiYvaQMkYuuhtTekzDYwilVHUVzkAT2HP1G4HuPPImZ1OPbkTd3RDr6a9sFinvVA+Zdj2qigXKMT6TgC4O8gG+am8VtSIiAiIgIiICIlFpvHChh6tY/2dNm8wDYe20DSPThrJtV+oQ5J2fPe3v8AsE1bonBNXqqigszMFUDiSbCe6d0k1es7tvZie4eF5tfoI1YV6pxbZrSFkuP7RuPkL+ZEqdtsal6upgMKlBQNr0qjD1nPpHw3AdwEvsRIrR3SdQ2MdUI3Eqfaik++8xqhMv6ZBs4kH6QU/qkfCYPhassSt/ag4jbwNHmoZP0WIH6tpkMwvoorbWDccqzD2oh+MzSRSIiBr7pt0saOAFNTY16gRj9RQXf27Kg9xM56pm5uZu/8IOgThcM43Csyn89CfsQzSWHGUsSpwEingnsqEREAIiICJ5EDwiQ4eu9KotSmxV1YMjDerKQQR5gSO0l1RmBIR1dqzpYYvCUMSBbraasQPVYjtL5NceUucwvocRhonD7XE1iPyTWqEeVpmkjRERAREQEwfpk0j1OjKoG+oy0x5naPuUzOJp78IfG2pYeiOJdz5WUfa0DQyLdrd86v6L9FjD6NoC1i69Y3ft5r+rszl7QWENWuiDezADxJsJ2Rh6IRFRcgqhR4AWEqRMiJ47AAkmwGZPICRWjOnXFWxdNeSD3Z/wC6YBhcRIukPW4Y/GPWRCqA7K3N7gWUNuFrhQbS16PqFiAoJJ3AAk+wSs1v7oUq7WHr91UfsCbHmtugyg64XEbasp+UWsylTYU6Z3HxM2TI0REQLDrxq+MfgquHyDEbVMncKiHaS/IEix7mM5bqUXpOyOpV1Yq6tvVgbEETsKa+6R+jdMeTiMOVp4m1jf0KwG4PbcwGQbkADuBUNCpY7p6VIkzSWiq+GqGlXpvSqD1XG/vUjJh3gkSUtdhvErJEi+ULxWejEJylEFp5aTOvTlPDXXlAgtI0pkz35SOCyE1WbdlA9che8ybobRFbF10oURepUNhyVfWdvqgXJlx1Z1TxWPe2HpllvZqrZUk53fie5bnum+9RtS6OjaZCnrKzj5ysRYt9VB6iX4e28ixfdEaOTDUKVCn6FJFRedlAFz35SriJFIiICIiAmg+n+ttYymn0aK+9nP3Tfk546Z22tJVBewVUFybf2an4wVj3RfgtvSGHH+Kp/RO18J1ROcOhrCf9fRbauAzgjI2IRrG4m2NfekGngfmaKitiSLhb9imPpVCPLL7wDakZlicQlNS9R1RRmWchVHiTkJqbpY6R6Rw7YXAvtvVBWpVW+ylM5Mqn1mYZXGQBPG0wTSOMxGLfrcZWaq17qt7Uqf8A8dMZDfvteWTSboN5A8TGGrHTNIKAyHavmbkC3Ddfjb1d14XDoxsr8/SBtlc5nI8huM9q7B3MJAtHln4Rib6dCfg/Vi2j6oLFiuJYAEk7K9XSICg7hmTbvM2dOd+iLWcYHEFKhtQrWVzwRh6FTwzIPcb+rOiJFhERCkREC0azYSjVo7NagtZb+iybez9YDeDe2Yta95qLWjVLR9EGoWr4YHJQVZlv9Vanabv7Rl/186VlpFqOBKswyaubFVPEUl3Oe85dxmmsdpKrXc1KjNUdt71CWY92e4d24TN423vGpZJ0r9JYXD06aFK/WObXULkAQb7hlwyOe+WvrB/K/wAZAxcWsN5sLAb/ABk1aVT1qlu5QPeTlNcZnnWbdvWITUHd7D98daOY/R/jDPTG97+LMfcuUltiaH0h+vNIqFBOYN/DZHuIzl20VpGnQKl8DSxB3jrnqgf/AF3CEeIMsI6pvRce396V2E0pWoixtUpHMo4LIe/ZvdT9ZCGHAiQbp0frlpcKttCfNgDZFOqqjZtlsjZItblMo1X1wpYxmomnUoYhBd6FZdlwuQ2l+kuY5HMZZi+tej3ENXOxo7Hvhn3nC1wKtNuJai2QI5jZDC2ZIFztDQug6iVflOLqrXxGx1aulIU1p0y20VUXJNyASSeAsBneKv0REBERAREQE5+6QsSq6Rr1VszbWyvHcqqc+ABBE2dr7rR1CmhTazkE1GBzRLXsDwY3UX3gNeaKqK1aoABdqjBVHibAdwgqdojRXWBq9QXRTYAkgO5z2b8FA7THlYC5IlLpDHIl2J45m1ix4AAbgNwG4DzMvGtGkkooKFM/N0gVJHrMD2/MuD+rymMUMNYfKMRlb0V5ch4yojC4muCbihS4sxsbc/5t5y3VcPg131atVuJQKqnzaSNI6Resc8lHoqNw7+8yihNVjigRYGso3i5VhfnYWkzC1BT9JVrU+Nrq6/ktvX3julBIkcg3GRhNZIyKoV6b7dJyQrWsysMzTqjcHsbg7mGYtmBvvoh0+cThDSc3fDkJc7zTYXpk+FmX8wTm6nVsjlclawqL9FxnTqLyzy7gWHGbf/B/xBatW5NRBPirgf7mhqN2xESKTUPTLr31e1gaDZ2+fZTnmLiip7xm3cbcxNj616ZGDwlbEG10Xsg8XbsoPDaI8rzk/G4lq1VqjksSxJJ9Zibsx8TAUwWzY/cPOXPBYOmT6QJ5bX8ZIweDLWJsB339wEvTUFCZWccRx794+EqI6/VdXsEbJAyI3HiLjh4iYnjbliu12QCSd+V7C1sjK6vX3rcnipO+1r2PePgczlLTtdp/yPsZYV5TtwW/e2fuGUmfKGXIbPgEX7pDh1v4S44fAEi/or7z9/2Qi2YiqzDtA2H1QPhJ+BxtuyxuvA8pVVsDb0T8JbKtPPdZvt7iOcC77b0XWrSYqVIYFTYgjMMttxE6M6M9dBpHD2ewxFMAVAMg4Po1FHI8RwPcROatGV9oFDyyl71G082j8bTq57INnA40mIFRbcbekO9RIOrIniMCAQbgi4I4gz2FIiICQVqgVSx3KCT4AXMjlj14rmno/FMMvmXH6Q2fjA0PrBphqpqOx7VRrt53aw7u17hJOgqgFVqvCjTJH5b9lfdtHylh0pie/wBb7pU0MTbDVCPWdR5Kt/8AdKihx+J6yuoO6+23fbdfnnKTTuOLsF4DPzMpVr9tj4CU9VrkmEtQzyIjUexERpip0fm+wdzgofPcfJrGbs/BywZ6uvWO7s0x7WZv9vtmkMGbVEPJgT4Kbn3Azqjor0AcFo2hTcWqMOtqA7w1TOx7wNkeUVqMuiIkVqf8IHSZTD0KIPpu9Q/5YAUHzf3TSejKFznw+2bT/CJJ63Dcurb9sX+E1pow5sO+8qLksqqZkmksqESBYtO0dhg67jn5jOWZvSqdwt+sJkesQGwi829gAzPlcTGi10dvpOB9rH4QK/RFHadVO4DaPfuy+we2X6tLPoZrVT3gj33+EvFSBR1BLdpGncbQ3iXOoJQ449hvC0C10X2XBHP7c/jLjjsmVu8X88vhLa4yv3/Zl8JcdI+gp8PtkHTvRlpA19GYZjvVOrP+UTTF/JQfOZRNd9Bbk6OYHhiKgHhsoftJmxIUiIgJYNfqBfRuLVRc9RUYDmVUsB7pf5DUQMCCLgixHMHfA42x9S9/I+0W+HvkzDVr4Zhyq39qj7pV63aFbA4uthmB+bYhSfWpNnTbv7Oz5giWjBNYsnBhl4rmPdtDzlRIG8zxhI6i2N/bI9iGVPEiemRILyK9ieXlz0JoSriqqU0U3dgqjixPBR4XJO4AEnIGBmPQvqecdjOuqD/p8OQz39dzmid4yue7LjOmpYtS9W6ej8ImHS1xnUYes59I+HAdwEvsNEREDUH4Q2ALUsNWG5WqUz4sAy/sPNK4SqRYjeBmOYnVOvugvluBrUAO3bap/lp2lHdfNfzjOUymyxU3BB8CJYjIcHjUIzNj35e+VT42mozYHuXM+6Yv1hvYAMfDP3T2rWK+kQnhm3lygT9L4suSPWIsB9BeNzzPGUyYfsFcrcDx2uZ5Xy8hIMNXQ7gbczvuPpfDhvkqvjbmyncfL+Pj/wAmKqKNxY7iLeRH/H2y/wBE7a3G/iPuljo1Bv4HI/D2/aDLzh8KbXRh4MAfZKiDEDZ9LLxlnxdQsct18u885X6Rp7PpNtHkBYfz7JQDmf8AiBTYhdyiVuP3IvO3u/5krD0do7RyHCXfVfQ76QxtOil7M1iw9VBm7+y/nYcYHQPRHo80dF0LixqbVU+Dsdk/oBZmUl4egtNFRBZVUKoG4BRYAeQkyRSIiAiWutjKg3Ay24rSlcbkMCydLWoP9I0hWoADFUhZb2HWpv6pjwN7lScgSedxzZiaD0nKOrI6GzKwIZGHAgzo/SOmMdnsI/sM1trdorG4ttqrhmZhkH2bNbltDMjuMDXZYHMeY5fwkCnZ7x7x94l5bVHHA/8Al38x/CejVPG/iH9hgWtHB3SLq1O8CXManY4/+nb2H7pXYTUTFkjbovbuX4mVMWvQ+AavVWlhqRq1W9FVHtJY5KBxPCdE9HGoqaPTrapWpinWzMPRpqczTpX4brtvNhwAEwjVrAYjCrs0qBS/pEKdpvymOZmW4PGYvijewyK2DExnCYuvxUy74eu53iBXxIFYyK8D2aM6ZtQilQ46gvzTtesB/Zsd7/ktx5HxFt5yGogYFWAIIIIIuCDkQQd4gcaviGBKKuz9pkh8ONq4IN947+7n4TeWu/Q8HJq4C3E9QxtbupOd3g2Xfwmn9MaBr0H2KyPTYcKikX8ODDvgU9KjRPpBQfrdj3XBMk4rB0x6JPkcvfPFp1BuFx3N9+Uh2G/F+3q/3ZR5gGGaHdu9p+DW9pmSaL0mgXYKqSu/aBv5EGY91bnethyAt7xlJ9FlL3LAdkbR2rDayyvxkFZpfFKz9kWytsrtb/POU9LCk5vkOX3mTBiUHoAsfqg+9jLnoPVfG6QbZpUmK3zIyRfy3OQ8N/ISotDFqrClSBNyB2QSWJyCqB9nGdFdFWpA0fQ6yqB8oqgbW49Wm8Uwed8z32HC8i1B6OKGjwKj2qYi3pW7FPn1YOd/rHPwzvnMikREBERA8tFhPYgebI5TzYHISKIEPVjkPZPOqXkPZI4gQdWOQnvVjkJFECHYHKe7InsQPNmLT2ICIiAiIgJJxeEp1V2KqI6nerqGHsOUnRAxTG9HGi6pucKqn/DZ0HsVgPdLa/RHow7lqjwqfeDM9iBr09DujT+O/TX9yTaXRHowb1qnxqW/ZAmexAxnR/R/oyjYrhUYjjU2qnuqEiZJTphQFUAAbgBYDwAkUQEREBERAREQESCvVVFZ2ICqCzE7gALknymvtI9Mmjaf/a66uf8ADp7K/pVSuXheBsSJpLSXTbiGuMPhKScmrVGf2qgWx/OMxbSXSNpSvfaxRpqfVoKtMfpC7/rQOlomoujTpO2iuExz2bJaVdj6XAJWJ9bkx37jnm23YCIkFasqKWY2A3k+yBHEx/TGueBwyq9WtYOSFsrm5GZ3DlLZS6UdFE2OIK5X7VOpb3KZJd6GZxLN/WnB/jf1Kn7s9/rRhPx36tT92UXiJZv604P8cP0X/dkirrto5Dsvi6SH652f2rWgZBEk4TFU6qh6Tq6HcyMGU+BGRk6AiIgIiICIiAiIgIiICIiAiIgJzV0oapf0fjPmxbDVyWpH1aZv26XcBe4+qbcDOlZZNcdWqWkcM2Hq5XIZHABanUX0XW/iQeYJHGFnf65rwuhKjC5BAvvayKcr5M5AP885R6SppSt87SYnequH2d28jI+V903Zo7oTwQscVXxGJYC1mfYTyVe0B3bUzHRGpejsLY0MJRUjcxQM/wCm929858ePLdvJ3+T5eFn14cJPflzLo3QeLxVvk+Fr1QfWWmwp+bt2ffOhOivA6So4U09I5FWAoqXV3WmB6LMozz3XYnhlYTNInR5yIiBLrUFcWdVYcmAI98ho4WmmaIq/kqB9knRAREtetOONDB4msvpU6FRl8VQke+BqXpM6Ra9Ss2DwTslNW6tnp36ytUvslKZXMKG7PZzJ7t9ow/RRpSqnWFaSMc9mrVPWG/0tlWAPiZceg3RKVcXVrONo0Ka7F8+3VLDb8QqMPzpvSBy9SqaR0Lidz0KhzKntUqyg2zAOzUHeDcX3gmdB6laz09I4Za6DZYHZq073NNwASL8RYgg8QRuNxLd0raJp4jRtcuBtUUNam3FTTFzY967Snxmu+gfGsuMrUfVqUNsj61J1Cn2VG90Decl4lSUYLvKkDxIykyIGvOkDQGLxFELQpM568NYOgsopspPbYAZkZDx4mY3qhqdpilXZlY4T5sjrH6qsD2lOxsBzYm17/V75ueIGM/0VpT/3Gj/oh/8AvPRgtLLuxeEqdz4Wol/zlrm3smSxAxZNaalB1p6Rw4oBiFTEU36zDMxyCu5CtSJO7aW31plMkY7BpWpvSqqGR1KspzBByIlg6PaznCtRdi5w9arhwx3slJvmyTxIQqPKBk0p8djFpKGa9iyLlbe7BBv7yJUTXnS7rY+CWhTpopao/WFnuQBSIOzYEG5YrnfcDzyDOhjFNU0c9oIHO62yzMo43vdTKmac1O6Rq2Ix6mrTp/OhKJ6sOtu2Sp7THi5vNxwEREBPGawuZ7JGO/7beECJcQp3EHznu2ZiuGxiVATTYNskqbbwVJUg8rEGX5ahsPCXE1XK15FLRXwTVWQioyKpuwUkFs1IGRtbIg3vkT4y7yKSw65aQp0KKPVfYXr6Wdi25trcB9Uy/TXPTVozE4jD0kw9KpUs1QstME59WQhIHeT7ZLNmDY0TBtXtMaY6uklbRgyRFao2KpqzWVQWZACQTmbTIP6Qxn9zX/UJ+7KLzKTS+BFehVotuqU3Q/nqVv75Q/0hjP7mP9Qn7s8/pDGf3If6hP3YGkOj7WA6Jx9SnigVRvma+RujIbq9t5UXP5r38ehMLiUqor03V0YXVlIKkcwRkZrXX3UurpH50YQUcQBYVBXQq4G5aq7OduBGY7xlMH/8NdNYfKirWbM9RiFpgn612Un2QNidM+stOhgnwysDWxFk2Li60znUdhwGyCBzLTHegTQ7F6+MYWXZ6mmTxJIepbuGzTHjccJQavdDeKq1Osx9Raa3uyo23VfmNr0V4dq7H7ZuvR2Ap0KSUaKBKaDZVRuA+J434kwKmIkFZNpSt7XBF+Vxa8D1qgG8gec9BvumuNaejeri65qrXpqNlVsUa+V+/vlZq70e1MOoB0hil9LsUHCUhc3uFYNnz74GeRMeGqx447HH/OUfYgkNTU+k+VTEY1xyOKrKD49WywJms2syYYdVTHXYp8qOHSxdm4FvoIN5ZrACT9U9DnCYZKTsHqEs9VxuarUYvUIvw2mIHcBJ2h9A4bC3+T0UplvSYC7v+W5uzeZMuUBMJ6Q9QzpRqLDECl1QcWNPb2toqb321tu98zaIGsNWOiY4TEU6zYsOEcPsijsklSCBtGobC4HCbPiICIiAkFantKQeIkcQMPqaiYcVxiEooKysWDrdTdr3uBkb3O+ZAmGc8gO/M+wffLhEuiVh6OzxJJ/nKTYiQIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXFxcXFxUXFhUYFxUXFRcWFhUXFxUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFxAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAFAAIDBAYBB//EAEIQAAEDAgMFBAgDBwMDBQAAAAEAAgMEEQUhMRJBUWFxBoGRoRMiMkJSscHRFGLwM1NygpKi4RUjQxay8Qc0g5PS/8QAGQEAAwEBAQAAAAAAAAAAAAAAAAECAwQF/8QAIxEBAQEBAAICAgIDAQAAAAAAAAERAiExAxJBURMyImFxM//aAAwDAQACEQMRAD8AIDPVcLbKXYUb1q82c7UF0x6ttjuoZhYiwSnlp19efXtH6O64WqcC2qjIVMrbfaEuuutsn7NtykbFoSi4qc2oHN4KQRqwI10t46DegS56Qlh4rgbdQz4jEDYXeeDRfz0UE+JSfCyIcXm7v6Qp2Rc57opDGD1T/TsbqWjqQFlp8VYPale88G+qPJUX42wexE2/F3rHzSvUaT4b+a11RjEA/wCQE/lu75BMbiTTm2ORw4htr+Kwtb2jlBydsg7mgBVIcWldGB6Vw3XucgCl91z4Y9DdiUm6nkt3Kq7HW7RAaRbIgua036ErEx4tKzITPNt9yLqv+M23EuzJNyeKX3qv4uXogxlm+N/X1T8ipGYtCctrZP5gW+ZXnbSNxUjKyQaPJHPP5pzsfxR6lCNoZODhyIKlGRsV5lDiDhns2PxNJafJFaTtE8H9pflJ/wDpE6/aevi8eG6ITHxoRR9o2H9oCw8dWnvCKsna4XBBHIq3PZZ7PZNYWIUVQ4nopVE4KZxJdaX5becqLZXQy67ZIq0f8K6SWyUkvqf3qaY2GWqrOaVLIbpNjyRmDiezA0garno9rRWNi6Xo0SHep+lf8MumAqwwlOLOKXlFVBEE87IuXEAc9FVxPEWxZD1n/CN3XggNTK55vMST7sTfsi1pzxev+CdRitzaFu0fiOTR90Ira0f80hefgbk0eCq4tJOA1rQ0BwJsCAAG+1d5PtaZb1mpalRbW3PHMHKjHHWswBg5DPxQqesJ1JKHvmKjdIktZfUKIzlQEpqC12pmzGV0ynfl3lceE1hAGaR6sekTI3b1GXi2qiZKgSiccqnimzzQpsykEiStHRKDkmujuhccqtsqEBYjkc32TblqPBEaHFnMOpYeIzaerUOYQV1ycpWStxQY8DYSZfmGbT9lp6SRhAtY3XkEUrmm4PduKO4JjrmH1T1YdD04FPr/ACmJ55nF2PQ6iBu49yqkjqqdHijJRcZHe06j7hSufwWvHNk9uf5LL16xPtdV1VfSFdVYWxfEQGq4RuUrhvTHBSg1osutAK7dN2CjFypWMScnNdlmEIxvG46dpLjc7m/dTP8AZ9SXzHmPaZ73V02wTtbdhb8oA+itjF2xxFkzml7hZxaCXEcCd3khOK4uZHPLAGB7i5xHtOJ1udw5INa5U635nhqMNnge0wNc+ziCA46Eb27hluVbEMNfHn7TeI3dQh1DFZ7Dex2m263Fls52pGxuyr1Hgs0nssNuJ9UeJWlwkwxudtRt2jmH2vblY5DuXcQxVzsmZKpP2zvVlwLHZ1rBeWYDk0XPiVDIKduTIzIeLibeAV2LDnyG77o1RYI0e6jP0n7fuswIZZMg1rBwDQE9nZm/tElb2lwsDUXV2OhaBm1LBtefN7Jx20Ko1nZL4CV6oKUcFFLQNO5GJvXUeKVWEyx7rhUw8jXJexV2EDcFl8S7Ptdf1bJYrn5v2xbJlajlXa7BXxm7cwqDXkGxySsbS6Kxykq42VB45VajlSUIghccFDHJZSh4Qa9Q4iQRtGxGjvut5gWJNlGw4Wk8ncx9l5uRdXKCsLCASRY+q7e07s1WpvMerfhDwHguLH/9RVPx+QSS/wA/3D+vx/7bINukXptinAFbOPCY5Siyp1NXHELvcG5GwuLm3Ab1lMS7SyvuGf7Q3EEF/wAiBwsL9UripzaM9pMaEI2WZyHQcOGXFea1YdO4ukeegBPmclcmOZJLnE6lzi4m17XJ6nxUMUD5HbLGlx4D68Fnetbc8YpGkjGgvzJU9LRl3sMyGp0A7961mG9k2sHpKgjLPZvZo/iO9OxGobs7MYDWj3rWy/K36nLqn9T1iKenLqprdQz1jwuNPOy2L6fJUezFHtudJbInLoNPE3PcFoJ2IwWgJp7uA4lFqTBxqqNbWtgcx7m7Q2rWGtrG5HRaTCcShmA9HI0n4SbOHVpzRGPy7rsFEBlZXYYVMY81K1iv8IRhiRCmLFG5+acPXRe3JcITtrvTrJFapSC6p1FIDqjD47qMwpjGZq8NFtFlcW7PtdewsvR6iHND56QcFOFLeXj1XQviOYyTIpV6LiGEh18ljsWwUsN2qOucdHPySqscymikuhzH528lbp3qWotC5dkCosksrkT7pm5Y/E7xKSkSRoexA6XCE43jrYvVZYv38G9efJDsc7QasiPIv+jfus0TdadXHPzz9vaSpqXPcXONydft05KAMJIABJOgGZPQIlR4UXWMjhG055+0RybuHM2HVH4p4Kdv+2M7ZuyLj1du6ZBZXy6JzIA0XZpzjtTHZHwj2u87vmizauGnGzG0X5ZC/wCZ3HxKHYhi7ngkEMZ8Ryb9391hqCgBxAOBLI5pGNyMjRkOgtbuVTwm+R+pxB0hu434DRo6N48zc9EEx6q2WAX9oht+AJzV+gjLwC3NpFw4bx03Hku9ocF24stQmkQ7Pys9CNnKxIPK2Q8rKeoevPaHFZaZ52gSD7Q3HmOBWihxgSt9QPudLtI8OPyRosDcZqDLNstzDMu/3j9O5V2Uts0V/CtjbnYDUi9+97vePkhrXPqXbEQszecg53JoKRx6H2QrDLAA57XObca3dsjJpcEcc3JeZwj0JBjJaW6HQjkR+ugW8wPEvxEQfoQdlwG5w4cjke9XzWPfOeREtNrpgYp2tTtlVrNDE1TbKaBmnC6VBwUb2pwCcSkED4gqz4FbeCoXFMeQ6aIEaBBqzD2kHJaJ7LhQvphbNGQ71Xl2OYPvaEAjJabHVerYhRgrFY7g+8KOucacd/ihUT96uQuQuJxGR3K3G5S3lX9oJKDaSSPRyoqWM9o58NT4KozFXE2Y2x46u7tzevmgcQtm43O8Xue8qw2U6DIcB9eKZSDUdVbNztp3wgm3Vz9XdB4pVOIWa6RwBDANlnu7Tr6jfa3mh9OjFPg5la4PDthwAJaCS0jNrgBrzSNdwzs8JA2etk27gObA0kMbfMbZGptbIW6lWMV7RRRARMaCfZbFGNOADW6KjDglXsiI1tOIhlttdtSFo0AYBcutu80YoMJiph/tNLXHWV9nTv6A5Rg+PIFMGYJG6KGNkg2ZPXe5u9jXklodwJPyPBMr6ouOy0X/AFvO5TOZe4GQ1Jv5ued/W5VGprGRg2IsNXHJo6A696acQDDmX2ngE8SPVHRvvHmclWxLF44AQM3HcM3Hqdw5IZUYvLO/0cANybbZ3ngOCIYV2eEdpH+u73mu1HFGjA6KgmqCJJgRFwbnbnbejv4ZsbQ3ItGhAGXeNRpqp5aljD6mQOo487fVAa3EdQgJq+pvqcxv49eK03/p412xK73S8W6gZ/MLEYdTPqJAxu/U7gN5K9YwmmbDE2NmjR4neTzJVcxl8l8Yv5roemg3T29FWMscaTwT2uuurmymEbr3SsVIuFqDRv0UBF1aMaQYj0VUiw8FGUQcxQyMS0vIbLGOqEYtQhwJHhZaCWyrS7VuHgl1L+F82T28mxmg2XFwVKJ63WPUNwb5rDTR7DiFnlb8dS+knpElHtJIWjjKuU7LqjGi1CEiHcFoASLrcUbmRtWLpKrZsN/AanuVySut7btn8gsXnruZ80YetHUYkSbNvc7hmT3fdC6mra2+0dp3wNOX8z/oFnMQ7QBrS2+w0+603e7+J2p+SENbU1LXGMbEYBPN1t109IVxftFnst9d26Nnsj7qlh+ES1ZcZXEbIuGDIWOhCJYHhUbI46iMXIykBz6q/XVLWP243WyzG78zTbxQEeHUjGw7LmgPj3jIOF9/A7kzFMX57tUKrcYuHcSgM1UXIC7WYjdC5qjeSoJpwNMz5BRxxFx4pk1HZ3tIIRsiNmepuQT1Oa3eGdpWOAu1zRxFnDyz8l5jTUBA/wAfVW2ROabtJB4gkHyTnViL8cr2aiq45B6jgeW/wOashpXj9NisrCL+t1yd3PH1utdgfa+52XEu/K7J9uLT74/WSqdIvx2em1AT2BQ0dUyRu0w3G/iORG5Tgp6l0NTXNTki1ARHkm2U10whMEoJRdTPYuRjLMKb4Oc7VF0eaikhRJ8e5V5WJ6nqZWdxOC4WB7Q0djcL02qjBusl2jgDWknoOJPAJdK4YK6SIfhHfuyuqG6BkQGvhv8ABX2er7R2eQsXfYIaamwys0eZ79UyP0j/ANm0kfEdNCfkCkei78TDBl6g46uPeqP4qWTOMENLg3bPE/8AlXKPAg30Esrtr0jnAg6Cw9W/ejNXsCmEbMix5d4WP0KApU/Z8RBs0nrvZMA8H4bjO3O60FFK2Ayt9wuu3o7UcELrMaadoGxa8AOHHK2aCV1eTlfLT7JGKyYj6Pb2D6ryTbgf8oJV4iScjyVF9QTkq0kwH5j5D7pp1JJLvP8A5ULNp5sNP1qmxxOeeK0uGYaGhuRufeFtb6IMHjws3A1yB8UdocLsjlLhWdyMyiUdByTAI2kXDSI6+ltqmCEfPKxBy1yI5hBaz76RRvowde4jIg7iCNDzRuaHNRiBGDTcDxmSKRrJHesf2cm6T8jx8Xz6r0fD6xsjbjI7xwK8xxOiD2bByDjYH4X+44d4t3hFexuNOLbv/aRn0co4297r9QVUR1NehC5SISicLXBuDnfinF6bIy6aunNRuCozS4rj9F0BdDUEYXE69xUMjlZIQHGu0DIjsM9eX4Ru/iO5Qcv2vk7Fa1kLS+TTQN3uPABZMtdK4zznZY3RpvZo+p+aVXJY+nqn3d7rfo1v1WfxLE3znP1WD2WDQczxKTaTB/8A1+m+F/8ASPuksrsrqC0ykw+JrvXO3drszpfQZIhTYiA1zQALgEciLg+RQJ0pTPSKVizsSvF6M+6Q5vIjX6qn/qLgSb6ix+SolyifKEBPJOSoXy8T3b1AZCnwU5doEBx8pOQyHBXcPwpzyMkWwjAbkEhbbCcFGWSNABRYIGMLiNBf7IrglEJJWi2QG0CMr7ORuP4uhyRnHqUsiDWe0dpxva2xG0vfe+W4C2+6tdhqUOEkhaWuBEWzawGyNo2BzBO0CQf8ANdiw4DcpfwSOCnSMCeljIYxhb3tAY7YcDtB2RzG4g6jjyCHUWFztdtTPYbAkNjaWtF9XOJJJPDhmt3JTNIsQCOBVCrpWtYQABoAB+uCB+GWfTJn4dGHxKB7E4WAGOs2YHu3ts4dQ4EeaH0LvR4gbaTMzH5g0OB8nK32xn/22wj2pXADpew/uLUPDtrFGtHubI8I3E/91k6mR6Jh1bsjZdpuPDl0RYcfPis5ZQz40KaxN3A39QEZmxtroL2zT1PXP6asBNIzWMHbh4fZ0LS29nbD7lhzydccjpllqiL+18JALGyOJ90NALT+Yk28CUan61oSh+I4pFBnI8Dg3Vx6NGazlbjtRICbtgZvIILu97sh3LL1GMQRklt5X73Em1+bzme7xS058f7aXEMcnnuGD0Me9x9sjmdGBZqqxeKG7YQHv3vObQevvny6oNX4rLLk51m/A3Jvhv71VY1TrSST0lmmfI4ueS4nefpwCcwLjQiuF4eXG5Tk1PXWKX4d3wlJav8AAnkkr+rH+Rlqns7IDlY8wfuqs2Elgu4jUC2upstpXusszizrbP8AF9CleYudWspNtXI4EjzsuRUzjuRSupDtGRue8jjx+6I4U5kgy9oaj6hRW0D6HBydVp8Nwho3J1OyyLUhsp1WCGH0QyyWjo4QEFpJQjNNOEtNZq8NZK0h+WRbtC1w0lpeOh2QCpezAvAJDrK583dI4lv9myk2UEWOhyPQq1Sva1oa2wa0AADcBkB4J6F4NS2VEJwkZwnodc1DMU90dT9B8yr7pghFfNd55AD6/VLRijMh1dUtjaXvNmgXJTsWxSOFpdI4AbuJ5Ab1gKmqnxGb0cY2I25kn2Y2/G87zwH+SgktDVemnkrJcooBcDi7/jYOJzv1IU3/AKfwOmqJql+6+f53m5t0HzCE4xViQx0VICY2us3jNIdXnlqb9+ll6V2fwltLA2IZkZud8Tjm49Nw5AKolYkyWPrnNkle6R7WtbZouQOZtc9FpcWms02XluJv2pXE8bJ2hon4nSR6XkPIG391h4KjU9pnnKNjWDifWP28igSQSLU1TVPkN3uLjzOQ6DQdyjASATwEAmhTQxkmwGasU1A52Z9UeZ6BHKHDxbIf56qpzqOu5FPDsMN7nNaigorBdpaW26yKU8C0zGFt6R/hh+ikrfojzSSLGfr49cllMaiJb0I+y1lQ8FCcRgu08SMlNa81lqeoTpqEk+lg9oZujGv8TOPRV6pmyQ4aOzHI7x3fIhOhqSDcGxGhUNfQjh+Pg5SDMZbQG/mNy0FLUNcLtcHDkVm3ywz/ALdpa/8Aex6/zN0d+tE0YHOPWp3tmHFjtl46tJ+pU4uVtYaghXoK5ecnGqmHKQFvKRhHnldW4u1p3xtPQkJZT2PSI8RSrMc2Be/He0ZAEnNxAGgF+fC5WAb2uH7s/wBX+E2Tta39zfq7/CMp62Bx95y9K439U2c0WP8AtxmwjYSPW2zrk4W0tY3Q4ndu/Mk57V/WJNrOzHTcvLZu2Mnusjb1ufso4q+uqcohK8H92whv9QFh4oyjXrNVjcUYvJI1g5kfJYbHe3gu4QC+Z9d2QtuIH3Qf/pWRvr1k8VMPzvEkp6Mac/FcGL0VL/7WEzyjSeo0aeLIha3keaeFp0OETVA/EVcnoYf3kntO5RR7+R04XVbEsY9I0UlFG5kJNtkZyTu4vOp004DhkHU1BXYnJtuLi394/KNo37A39G9611NHR4W2wJlnIzOW2eXCNvLXqmSbsb2WFK30kljO4W4iMH3WnjxK0znLzqv7Z1MhOxsxN4NAJ73O+gCDT9oqj9/If5yB4BPS2PTa2Np1XktVJtSSO4veR02jbysi9D2iqXDOTaBys8A9TcWKHihNzYgC/wCskFqoAnMZc2AueCLU2Hxe84u5aD7ovTxgZRtA6DPxVTlF6wDp8Jec3eoOevh90VpMPa32W3PxHXu4InBh7ic0YpaGyrJGfXdCaXDt5RanpQrrKUX0VqOHoq1GWoIIeSuxQp8cSnaxJUiDYSVzZCSR4xs9OqrouKPSRXHPihVVHwzKL5K82MVi1KGPLSD6N+eWrXcRzHmLhBaiAsIvmDmHDRw4j7ahbjE6YPaQVlXuMZLHgOaTmDod176tdzHes7G3N2KNnABxGR0PH9cE6OcjMEg8QbHxCtfg9oEROJva8ZNn5Z5DSTuz5Ki+MgkG4I1ByI6jckvBin7R1DRb0m0ODwHDzzUv+txu/aUdM87z6MNJ7wgkERdfu3jyuRdOdTuFrhwvbUO/Jy/P8uVweRj/AFKk34fH3SvHyCj/ANepAcsOh/me93kUEL0ewOOkjIdO0P5EF3loO9BmDtgWZw0lJEfiELS7+opPx/EqrJrpnA7omkN8WD6rSDtNQx/sqQf/AFxt87kqOo7fy2tHExvMku8hYIGhFB2CrJjtS7MQOpe7af8A0tv5kI7DgGG0Wc7/AE8g902OfKIZD+a6z1d2iqZcnyusfdb6o/t170NAQTU4v20keNiBvoWaXHt24C2Te7xWYJJzPeT8yVGZAOfRQyTd/LcPugtSSy+Hz6Kmbk59yl9GXW47kSpcPJzIRC3DKKlcUVp8OcVYo6Jy0uG0HEJs+up+Auhwgbwb89EcpcNA3InHTC2itRUyqXC/spMpbblajgVr8IdyeyMDW9/1qn9j+qu2FTtjVjYbbQ36hIgcD4j7I0/riPZXdlSi3AeaV0aMiPYSUm0eaSNo8AM8WdlTmiyRV4vnooZmqmdgDUUwtzWfxXDQ77rYzQqlLByU2Hz4eZTQOjNt3A6HopmYoSLPAcBukG1bo72m9xC2ldhIfcbOXn1WXrsCe29hccN6z39t559Kp9A7Oz2fwlsjfB1j/cUm0rB7E7R/E2Vh/tDh5qiact1BbzTW33OQa4/CzukiP/ytH/dZNf6uTi2/JzXDxaSFBtP5eCaXu4DwSNPtt4hL0o3Anu+6gLn8h3LjmO3n6JknMvQdT9FE+fq7yCZsN436Zq1T0bn5Naep+yCqvsk65BWaGkc/Jovz3I3h3Z0kgvz5blr8MwQN3BCL3+mawvALZnMrQ02D8looKEDcrccVkI9+wWlwwDcitPR2GittYpGBUPrETYk70anAXAhWGtJH60TwQdR3pFNKMhzquubZKy5ddTFIBdB4hIpbSB6c2RxHn9kly4SQWhBcmgZpNHNSMCtka6JQPhA3dVZsmSN/X+d6SlKSIWVGajvz70WLUwxJYJcZmfC2nUKnL2YY7QDitc6FQFtj/hR1z+mnHf7Yeo7KBvHkq57OH4nL0cwbVsr20zGfVcc0MsLX5ZeeX6usfvfWeW14nu3I89b2VefePRSM7MNGtyeHNbVsJOvkufhBtaK5Ovyy6+Xmembp8DYCLMy8UZpcIANrZIuyADcpmfD+u9V6Z89TrdV6elDcrZohExRubaynYE55TZlTRlTscFC1PCMGpwQuC91Xc9OEnBVh/ZY2ki5QtepPSZIw/seHcgmlyjBTk8P7Ogp6YCmiVA1IHLt1E4pbSMOJLpKT8PzHiElH25X/AB9Ao070nbuiSS1c57Vyf6pJKb7az1TCkdEkk2aLce9V5PqFxJAW6f7qCu9ruHyCSS5uP711/P8A+URw6BSs1SSWrgSNUbd/X6LqSa+fytVGqliSSU8f1jT5/wCyRqc3VJJXGRu5Nj1K6kqgShOSSQok4riSQcckkkmZSJrNUkkHEySSShb/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIREhUSEhMWFRUVGR0XFRgYGBgXFhYYGBodGRUXFxUYHSghGBolHhcVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHSUtLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0rLS0tLf/AABEIAKgBKwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAGAgMEBQcAAQj/xABJEAACAQIEAwUEBgcFBwMFAAABAgMAEQQFEiEGMUETIlFhcQcygZEUI0KhscEzUmJygpLRFSSy4fAWJTRDU4PCNXOzRWOi0/H/xAAZAQEBAQEBAQAAAAAAAAAAAAABAAIDBAX/xAAqEQEBAAICAQIGAQQDAAAAAAAAAQIRAyESMTIEEyJBYYHBU4KRoTRDUf/aAAwDAQACEQMRAD8AGcHxk+GRYlUOiurxkizR7WkX0IvsfGjHFcTYmSA47DosfZBY5L94y3tzA6gnY+Zqm42xWFzFsKMJYsxYNZdLAcwGFvKncFxYowzQLAoMTxlrkd7Qw1WTmTdfvrLapz3izMo5uylmMdxqK+6LHz5+VSeEc+eDFwsxHZuzLIRbkTddVugFrVU58Hx0Uc2ktIuoSW2IQsWTb4naqLLcO3aoBfSWFtW17A8/lT9h930keLMDGAzSaQ3usVYK3oxG4quzvjKB8PLoIaNhoVhc6mYcgAOn5VDzjKlxeFjXEIupApOm4BVha633FvDyrPMHLLlzYzBtGZFKlFbmFLWMb+u4ovc0Z67bXwfIGwykedL4ie0Tadjbn4VC4GVuw1kEBrWB57KAT/rwqD7SXcYOUpe4F9vC+9Z4+sIc/fWSri4phIXlRJVcpGqggmx5+e9N5bnmJwSSYUOFLMSbe9Y+dCai7Wa4ub7bHfrXF2lkLFjqXYkncgcvjW2RXluOxRKrGZe1hftApYkMnMgDl0rTMq4hxeNh+kRwrFCjANdiXcD9IQLWFvyNZHguJJ9rCzxghWAsbVqOUcZ4XD4ERAa5VWxhQXYm27fHc3qInhzLDyX7MrIpBsRY3021WPxpcM8BdiQA0V7ggbXHO/hY0KcNcYYOWHWU7HsEJIC7aTtYWG52tUXA4P8AtGaSSSyxPG3Yxlhdm91WYDwHTzojWSfmPAcGPm7VZdIZRZktub87cqGZfZpEpk+t1Kmou9++Co2GnlvcGrbJc7+gYF1SOYzQNaQsAU1nuhF/ZvY/GgaHiPG4idogxDYlu+oGnUTsR5Db7qWNpGRcU4yCAQ4Zm1XNlADWtux3+daplXHyvBFJp1XCiRrgBWt3vzrLfo4wOKbXJoIQgFQCpPVDfexHWp+WcT4WGF4Hwp7JzqNjumod3n59aMt66b4/Hf1Tpsb8S4fQXDXUcyAW/CqTH59E8ghMTIzd5GIFnHXccj5Gs6k4wVMB2WHjkLSXGkKx0+JJAtTeWZhO6R/SZLMjagNJJ0mxsdxY2PhWcvPc16fdmzV6aUBStNVCcT4b9Zh6qfyq7hZXF1II8qWjWmu0VJ0V6EpCMIqWIakBaVapKXGZxh4WKSSBWHSpGW5lBP8AonDEdOvyoUzbBpLmYRxdSBcfA0nM8AmExsHYXXURcX87GuPzMt/jen0p8Jx3GTd8rjv8CXEcS4WNzGzHUpsRY05guJMNK6xoSWbYbEVA4tyiBYZJggEhIOrrzqXwflsPYRS6Br56rb/Oneflpi8fw/yfmd79P3pYJmsRn+j2OseW3zpvF57FFOIGB1G2/TflVTCv+9D6fkKquNltiyRzAUj4XrOXJZjv8u3F8Hx58kwv3x3+xfnGcphmRWUt2nK3rb86l5jjo4I+0c2HQdSfAUIcQYgTfQ5PHn63F6ncbLd8Op5E7j4iq8l7/TOPweNvHjfvvf6PYTi+JnCtGyg7A86r+OsUFit1JDD4EVfcQZcjRJp0qYyrDkDYcxWecZYwSyuQbhQFHh51uWy6rllxcfJPLjmpJd/wJ8JxgbLqhISwGqoGYe0SNZGVFLKOR8dt/vvVlmmOilytylgyoNuoNYzI25pw397tj4jw6mOHjZ6l43PmXEJLh0GHsAqqve0mxDXJ58zTQkmguWXZrnXzu3r470dcHezSUOsuYDSqnZQdWonlqI5Cp2ecACZJdDsGDnQDcIy7W/Hn5VvbxAvhfGLpdJCjEhm7zaQGI2a/iKXm2YR4mSJY7IsYRdYF9ZU3aS3Xf8KsMo9mWMZjrKBO8r7m6kcvn400nA8kOKWJ5BbTvsSL2NgAOdJbTFmEGICmKVJdChXtbYm3vAcqDM+xGDixM8pxSSSyhYjEFuE5W7w2uLX3oJ4Hx00E7YdDftDpfb3ihJ2HlTuXlcPFjsNioyZZO/E2knUTyIb1saLN9KXXbcuGdoB612a6GBDkWO2/I0O8M5jJBlisFLyBBpB5k2Fwb+FB2e46eWA4iQuuhtlDEglrjdhtty8qzh7ZGs/dak5t7O8PipSsEqxtzI5/IX5U3g/ZYEUiWTU4J06VsvkT1NDs07xxxYhZGTFhxpQMWDJbvXHiORrQOG8ZmWJgXFI6OGBIjZLA2JGnXe4PnWtMhXFeyuUHUswB8LH8b1DTK58IHUQ6vF9JLDzBHKtGPGcUiooiczkHVCB3kK+8GJ26VQTcbS9m0yYW8AA7UkjUoY2BsPjT2me5Nmr6cbCANMlj42IPQ+d6g55mhS0cTuChDBgSpBA3At50e4rA5fiYAUxAwxmYtcJzA6et6n5DwNluJvH3neNbNq1I9z9oqbHeia9VbvoFQ8Rs8V2lbUQrMCbqzobi46g2opTMfpgXEKqoBFJq0lQwewsFYWIF+npUTPfZWQHGHe2kE3kay2HO5A2260PYHAjDRWvdjux3O/go8PxrW4O13luZzLHHEzNJIbDTs4LW3tceOonpvXcRZhDhkZpmX6QVsqQohZSfdLvb+nleouYY36BHpX/i5Vux2PYIeSj9o/j5AVV5Jw82IUzyMDGJVSTvfWFn62PqLnnvRO2lGsuZYixVZip3DMXAI6EXIFvSiPDTSxIomjbUANRLKb2AF/e8AKLcNiIUWIyro7GTQdiqyAN2dyT7wsQ1ulC3tH4KCscZhHWWGQliqm7IeZ0+K7H09ORZRC8LmcBkRZHEYLAFm2A+PKivG41sEO1B7p5W3Vvh0NZDhMQp7r+nkaIckzv6OPo+JvJg5O6b7mAnkynnov8ALmPAmm5Zvv0a3kHEUeJRSQUZuQPX0NXdAmCw3YvBGDqXUNLdGWxsaOb35UxZa30Vevb03eupZAHEUcj5iFhOlyBpPhzr3CI8GMT6YDI7W0Ne4HwqRiz/AL2T0H4GlcZH++Yb1H+IV5bPXL8vt4578eP7XD9/5EPGR/uj/D8af4N/4SL0qJxh/wAI/wAPxqRwYf7pH6V1/wCz9PBf+J/d/Cvh/wDVD6flUPifCGbHCMG2pR+ZqXCp/tQmxtbnbbl40rHo39pxtpNrDextyPWuVm5r8vfx5+PJMp/TCkLMJEjb7D2t4HVvRdxr+kw3r+Yqv4lyplxYdEJVyrGwJAN972oh4ryh5kR4/fj3t4j+tZxwsmUduXn48uThz3qWX/au4zwAcGVH7yAAr4bXvQJPgHMLSkG1xfzBPOpH03EPmEkbavrYrlTtcqAFNvnRDxbAIsDoAtZFB+BFdphvLyeDL4i48F4r69z9G+KslUYTt4D3GUXHgPGsofHIpIC3t18aJczz7ErlcMB2R7gHqyKdt/DlQKDW8cZ3p5ubkzy8fO7un0Lw77Q8HiyEu0TE2UPbvelQOMONGwp7gVl3UAj3mHO3go8aynhbIjL2iupHJVmBsI3vtq8Qd6tMRh5syjQBrzYSTsZiCAGRmskoJ53tv6Vt5FvgvadO7u7YVDHYFu8UNhte597ptWj8Oy4TMIhKqq36wI7yHw8h+NY5xckRiESRmLEwMFksPqpV5BrdDe331d5XJJlQhkDW+lwMZEayiN4yCAP5jUmqx4HCxSghYlcDTtp1Ab287b0/xEqJhpmIAHZ7Gw6edYnwPgXzPGOkrlYku8hBtIx6ANz57n0q+fDzrgY8XBI7RiR4cQjOzIyrIVSVQfd3C38j5UZTqmXuLrOcZpy13s1hyI2N32FvS9AOVcQPFD2M4D4fTZ0t3iGPRhyNaZFEuPy5gNtYA36MP6EVl2bcIY2HWAmpdJJ073Fx09axxdYyN8nupjhTGoMQrH9HG5ZdW+lWuLN8xR1wRxf9FafBTbgFpInXcAN3tNvDeszy7J55Fd442IT3/wBk+FO4aWWKQtocjYFgCfhflXWObR+GM4w8WLxEsxKrPbsnYGx6uPIb1SzPhX+lPGHEBR1VRc7g3U7fZuWNCudYiUpGgR1UAkFgRz56fKuybMWijdL7nkOh8b/CmyQTLa5yzCYdGvDiVYJEzI52UvswXfa+xpGa59K0xxQnKS6UUqNmcEbsttrD8qp8qnEcMqmy6yNF+hBvsD8qmYrN4pux1R6ZEPe8COtvKrLDWhjlvbTMLmUuIwEWq4d1tKSCC2k23v4kXodWFVlMj+5h17Zx4sNol+JBI80FEGFx8aYaISSrq0A7nfcXAIHWxFUZl1wvIullmm032IKJGbW8frAxrDamyvI5MUuIxsxtpVpLfrGzWt+yumw9LV5wpkWKxGDiGGKAkh3LEg3BNjtz5U3gp2EOGQMwDYeS4BIBAaa9x1qdwv28eGgmw7srpAllAurl5XBBHjalLLM+HszZY8JZZQpd9RNu8+5G45C5pOZcOy5dhYpJ2vK7lSFJKqLE7eJ25+dG/CWfSSxt2/ZiWNijMTa9jYbdDQV7RM+mnIgljCdnITfffbu2J2IIN6UzzN8H22I0wp32GrSPtHmbDxpiJmUdnOpXbbWCtx8auMkH+8Y/T8jRNx1lKzxI5uDG3Mc7Nt+NvnWaULgTNi0TQE62wp7SE396K3eS/it9vh4UbZfmTxgHmp3t6+FZdkSLg50mVj3WGu5G68mFgB9ktWkMBbu8unp0ol2dC+J9QB8RelimcH7i+gp8VoEfRkLatI1eNt/nSmgUm5UEjxFOClCo7rwoCLEXpcYA2AtXleioHBbnYV7q8qQK9vUDyNc0+3KoiNvT0slgT5VJmeKf/fUJ/wDtEfjVtx498I/qPxoZz7GrFm2FdjYMNN/3r2++iXjffCt6j8akzT2hyEOqclVF0r0FxvYUFSNY2o99qzi8QA3Ci5tz22361nTPVDaO5cd9DizGBACGkAQsdxYkbDqbWN6Fcgxr6ivaFVYgNubEc7MBzFXWPyVpsLiMdvcSXVbc0drF/QVQ5FASw25mw9TtUy0rjCPL8LEHjjMk8iaV1szKhIBLC/K19vWs2GbTTyAyyNIVBtqN7eg6cqvePIZxKZHQosgIjvysABt4XAqNwRw3JipLL3Qu7uRdVtuB5kkcqkOcDksIifHRY1YZgG1xhlBZLWKi/ukhefjRdj85y6DK2wsUi2eMrGu7aiwudTWte971j+Ny2WGaczDvLfboynw8iDUrGgDCw23HfI8d+nrSmyez2ADAou9x737xFyfvogEkcfekdV6d4gA+W9U/CKmHAL9ptIJ8yVrPcV2mOx+iZwBAUAXnrd2FwB42rnh3G8vVqeHyfCyXaMI1zditiCT4251J/s2NU0hF+VZhxRO+U45fondSdCSnTWDY/iPvq4zOPHQYQ4pcQ7yp3pYz7pHMhQBtYfhW7GIM5cuSQBWUEDypnEZPAraliQG1vdFZTnntOxBWPsjo7vfItct1t5VUScfY7QHErOEYXG17czcAb0NNWzL2fYLFDXJHZvFTpv62oa4j4LwmHRG7N2JIVFDWLWHViGJ5gW63qVlHHGJnKIDGiyC4k0sQp0khTvbpzoezriOfFQlpWDRI/ZhgNLBmF25bWsosahrtDx+WySSMJJJYlKudCyJbuqTbYXsbeXOnc2wwwUuGw8Wvs3D7MzMAwU3IvyuTc0Pw4+JbhWUMbj3iTv436mibOs+w+IaNVQtJGNSaiUuXT7BAOojURa25G1W1pUYPHrHFhkKBmkw8ihuq9+a9j8tqqcXj5IYMvMbN+iuygmxtI9ibeFXeVZxh1h7F4u+kbRq7WLISXN9hyvJY+nwov9mWXQPDCsyo0scQ03AYga5AbH1pCDlHEOCYh5ISxZdbhQTZgAOXU9b1QZvxGuJwyKGLN2rk6lsyqLiNS3XYirfinLkw+JYrNHCJDuTtoB5tbwoc4kyrCwxRHDYg4h2ciSwsLEbEL62+dRQ+F215gD+qPntWmMRY6gCOZuLjbflWUcJN9HxBebuqoJYkcr8vifCiDE8fKSRHGCOXeO5/hHL51Lao+liYF4gdLE6QRuBfYG3Wjfh/HmaC7KVKHszc3uyAaj5Ak7UH5RirRGPCnSyg6AwU3NyTdiCeZq/4JlLRTB2UydoXcLq2BCrcqwBXdSOXMUa0pdtOwfuL6Cn71GwZ7i+gp69JOg0oGm1NKvUjgNcDSAa7VUjwNeFqb1V5qqRerelYt+6fSmAd6dxKXU+lFTGeP2/v2D/ej/xGizikI+Jw0UzlYmV9e9htax/140I+0D/jcJ46k/E1a8eT3njQ8xC5uOW5X+lIoV9ovaCURu+pVUFDbofHz2oIJoi4gzOSfvS2JAC3AtcLy+ND9Cr6iGSJFh9KxowUWKHkyfaXfnt94qHlnBWDTFjExRIoCAoB7oYk94LyBtamm9pWCsNAd2t3lVfdtzuTtbzpGXe0DCJGo0vqtuAAd7+N+QvUhBjOH4H2eJJBcmzi4seYAPKoiZLBDGwihSJRcgLYXbkCbetLy7i3D4hGbeMrclXFjZTY26GhKf2jiSUwwYftbm1ybX9AAaNIL+0Zgk8u3OFQLb71SyQO+GhCozEa2awJ0i4FzbkKLcx4mjxbRxYvDrF2cyG6uNe21irAbXtWh5il8FLO6qJOzKEKLBQGF18+V7026indUmOzE4bKy45gKB8hWSZNmsrY1cS4VihEltrAD862zD5WmKgMT7qefyrK869nWKwoeSA9qo6Ad+352rHDfojXLPqqVmXFUWMxkWIkjIhw7lZgTquGNwwtz3UUT8Qe0jDJD2kETzJJ3GNiqqeVmuPCs1y3IMQMPLdHXvDUCCGJO4IQ7kedMx4TFKhgWGUxsO8AjWJ8eXOunTPetnp5RDECIVcspPe5KH923U2tUHDZ0Un7aOOMA91o9Pcta3Lx60U4ngDETQwntUBYABS2ygC6gkdTQhjuGsVDIyvE11Nzp3Fhzo1/43c9ySirKMVbBHCqja3l1pICAEC2JXx5A7edUmZyK8zQoT2EDFVHV3J77HzJB36KqipGTRYicARRMTe97WAA2NidjVXguTHqWcn1LEH/AA01iFug+yXTw0swA/hJsfSkPOdkexv7jDugnwI5I3mNj1HWltTc6gqVO4/I0JeZNiUxR7GWwm5RyHbXbbs5L8n6An0O1iJ3DmfS5VirsuqJjpdbb2vvpv7rDz8CDQOzlTqvup3PUge6/qNgfEW60fNGMxwglH6ZO7J4lgO63x2B8dvE0o9x5iMNPjWaSXTG8alHG9wRcD43qhjig+jl1Z+2G+q47JAOZ8b+XjUXL8BPjgMIjgOrFgrcjbmNVibjn86f48wr4IjDPIrv2a6gi6Qo3IU+J5H0t41ALZtmjSG1zYePNjy1N5/hVekxvTbG9O4eK+5pC8yuco4YH08/9XokkzM4adMSmx2LjmGUsI5VO9iDqiNv3zzNCeFPu+n51dY1taWHPspb+YABBHxAoLdsFKrRoye6ygr6EXAPmOXwp+9DHs+xJfBx36D8SaJAamjymlXpoNXFqkd1UjXTZemy9SSddcGqNrpQepJHaW3qNPn+GsQJkJ5WDC9/SukFwR4i1C+FyPBYeQXw2trmza7NfnRUo+LOGcVi5hPCABhkWTv93UVJNlHU1W4/Mmx06oI7PpKjUdJNwPkBY1rc+Ey91DSheX25W28tzTUWXZUCHVYbrsG17j43qDEM14WmEww4Hf638TvtbmKmQ+zHFkA7D1I/rW64bDYN2Zo1jZ295gbsdrC558qjPlmX3N0jv1uzXv8AOg7YTicNicCkUtxbGROCQL2XwJ8SLWNEg4YxMeCOLWRSRF2pjKaixdbEXHS1tvECrbFZxgsygii+sCwC50qACLW0j7jUbLuLpp3lwccKBTGFUFrPZFtcdOVtqQHeJ8VM0OBnDFe3QrKALfWraNm/iHTyrQ+EuEPo+JSYKNEcKqT9ppXuXNvC1hegTJM8MpXCYiBT9GZnW3M7ksN9je4rccn1SRLI4sXFwB9kdAT1NQZ3xRwxFPmUsenebCO4NtxJGRpb7xRFlE/a5GrHmYrN4kg2JPiTap+EzeGbGSRLFIZI1aMyW7o5Egm/XavJ8sGEytoAb6E6+Ja5/GrL0px9Yf4V/RP5G3/4iq/MONcHAzRHXI6glgilrDrcivMK7rg5tHvE7W81AoQ9nuUSquNaVSJGZot7EgWv+dc+L2Rvkn1U9m/tGgJVo4Gdb2uxAIA62/rRHk3FuDxMTGN9BUazqAFx1t41lHBGWPLP2bxGRUYJILiwGo3uDz5Vf5fwucJmhgOjs7Md7WEUyt3d+oYc66MO444jwU6mOJHEws0bCwUEciwvTuH9oKJIonw+5UB2U3F7bHcUKZtlqrE5w7xvpDCW7DX9WfeUfd51NyXMYJcJiImIeR4m7NdN2V/I+f3Wp0ho3GEUah7PHAzkB9I0MQLlQeYvvv5VlsqqJJAnua2ZOndZ2ZL/AMLCrTL8QuIyqSB5dLQN3VYb6r+763vVhmWTdhHhzGySuydmx2WzrvchjYd2wuf1DRTAsw/1/rypJW2nVfT1I5kX3sDYGn8xgkgneKW2tG71rEXB33Gx/wA6XjANN9za9z9nUSLEdNwTRtaVjINenmG7o8/1fny+NX/AWNOGxCIx+qxC2BPIMCVW56WZWX90g0PTjugjmOXlb/OpvbadMi3vHKsi+QlXWR8GhA/iNOwu8+BwGZxzRnSrlZkt4N749LEj40I8X5gZ8VNISW1ObE87A2W/8IUfCjv2lWkTDyLzDMt/BXtIg9LNb4VmucfpX9b/AD3pVQamRjYAVFHOpmGH2vDYeZ/y/pVWYmxvY7enyq5yoakxMh5RYdhY/ryHu2P/AG/vqkQWFEGDib6LFAP0mMlDnxEakaPhsp/jNTTTvZ9HpwqfuL8yXP4FaJS1QcrjCRgLyPu/uqAiH4qqn41JLVE7rrwvTOqvGepFs9IL02WpOqpGc4xTRwSuvvKpI9QKzHC+0LEtpLMBYjUAPnWh8SP/AHWf/wBtvwrAMLJYmpV9QYSUPGrjkwB+dAXGGJ7PH4XfbVv8RRZwjJqwUBP6g/CgD2pS2xWGP7VSN+1DNAGjjU9bm3LyvV5iobYKSUeK7D0FBnHaKFQjq679T470YTSk5biAPsSL+Cn86KBF7LZi5mJ6ED7qh5uk/bSaeWo23qZ7Jf8An/vD/CKVmT/Wv+8aFGUZViGhwrhFu7AWI30WIZz/ACgD40iZ5EeGfm7HZ0N7/q7DyuK3DLeD8LEiRoh0p482J5lvGpeHyLCxSCRVUNyG4t/L407TB8twOJlxMnZxSF9NvdII8zfl0rX+E8/xq4YLiMKUKWUMTa5/d8KLYcKiEsFALcz40pIwd2taoBHgSaSGeeLFfpZXaQNY6XDG4Kn02t000S8Xj+5zAbnT+YqwWZAL6lsPSkZgokiZQee16svbVj6wOZILYeUtt1+SjlWPtxrJDNiFw7EJM5cFruwNgDb1tWzZc/daM9P9Gsa4m4ExYxD/AEeLWhbUrAgaQelz0rnxX6ZHXk92wxl+OlSYSh2F273eK6r7m9vU/Op+Jx+nH61dyjJyZixXa2kEnl4CrF+BNEXay4uJCGC2sStz01X51IxXDuDJUjGR3UaTpOp3JPO3IWF667clDnMbYZTCve7RRIrddD72/GonDmaHCuW0g3FrH7iDWt4HIsqmjVVPahAELaiXPgD18anZ9kWAjg7sA0KpI0LuviaNnTJMJiNUzsw7rsGk8NvzNWeIzsG40gd4FCemk3B3qPnWRSRfWNaKNxsrbMfPSOVEEGatl4iWTD4ZlIJDNu9lsdTH4itAJ5tjZMRMZXtqLEsQAoJYknYDxJqMd9rm3hRBxPCXlkm7PsyxDSKPdBkF0kX9h7H0YEdRQ64tXNs1IOlOGT6sjxRP/mUfhcUmbcXFMu2wXxKr/KdZ/CoCbiKbVhIP4D8l0/kKD86wrLMysLHum3kygqfkQfjRPjB2ggj3CqoLkeZ2A87W/mFWeMyKTNzNIgWOeKwAv9W8drLGW6OLe91ub+IpdTdNm7qM6+jKNy3wG5/yp5X/AMh4f63pOKwMkT6ZFKEGxB6W5+vKlgqPtDwJPIefn12rW2D+Dg7RrMbIO9KfBfD1PL/+UZcD4ZsXijMRZQNKfsIOZHgbH5sPChXA4dsQywQqdJNz+tIfFvAVtPDuSrg4lTYuT3z525DyH9aPVqRdMbbCkFq8kNNlq2ii1Ns9JZqadqkcL0nXTJekF6EicUSf3Sf9xvwrBojvW3cVv/dJ/wBw/hWIJzqFfRPCTkYKEfsD8Kz72sS/WQnwa9HnD7/3WL9wfhWc+1ZrvH60Q30ReMZw8cDLurMp+PKiqCYnA48WuA6b35d1OlAucTAwYZequAaPclXVg8yH7S/4FqZFfsha6zfvD/CKzLjfi14cfiIwpIVyL6yOgPK3nWm+yM9yb94f4RWG+0b/ANTxX/uH8BTA2ni7it5ezgwT96YXDg+6gvdj4cj8qXw1hjPAskOGjZCdJlxDlpJrc25GwJ5b/Cgrh7h2Y4h4VRwpLJ2jAraHVuwPiQLfG9axj85w+AjVCjlQoCrFGzmw2Gyg1ncaBeS8XnB45sLMGSJ2toclxC3ikh3MZOwvyJ6cqb4o4vxWIkkgw3dSMEyOvRR4t0qm4pzCbHTK+HglTuMja4mUsh3IuRz8PSpvDeG05XirhxiJdVwUYOVBsAARvfc/Gna0l8H5Y+IOhjJp7Ms0g5Bj7iknn1PwFU2AxOY4LETxl9Qw1nkUkntEJ2dQeYA3t03rSsPmUOGwiRjWWCghVRmY2Ft7Dn60H5nmiS4+HFrDiNBgeOYGCQEkEaARp3vdqMr0ZOxjgsekpSdPdkAPoftD51SZ2rS4yLDPKyxCN58QdWkGMGyoSOQPX0pfBuHP0VwEddMhZAylToY7Cx8PCqvjXBsJ4cWUlkjKGKaKNWLPp7yggD3SedccPpy06Zd47AHF+bSSThIgyQ3+ojGwI5BtPi1VsOGmwsqu8bKUYGxU2I+1YnnsavOMWnxUi4mLCTxsoFhoe4t7tgFpeFjnnjDYqLEswsASkhI332tXo25aIy/CTYPNkjiO7NqiudmVgSAfLmK2pMPM7Qu6qqm6yJzvcePK16y3ITiWzHDvPDKyoQNZjYaegN7WtvWj8TYmVu0WPVZXWxUEEAqL2I573+dZujIp/aBgMK80LYh9AU2AtcN0sT0FDXGYwzrE0UOpowsbG9gyk2X1H9agceYKaYx/RoJy0YDPqMjgnqRq+GwqZ2WY4n6+XDkyRoAlxotbkwXq3kadwDTDQRYvFuGjFkwvZTRkghgxDKBbqtrg9L0AcX8EyYU60BkhYalP2lB+y3gem/Pb0F77LuHMWJmxMo7IEk2f3mvfYDoKNc+jPY4h2Nz2TqAOQAU8qxnlI1jNvnPFShe7y9SCfgoN6Vk+XyYmYRoO8dtzbQp5s56Meg50W5Zk4nwLTWLNGe+btfQZJlLWB6aU59AasPZkkEkywOinm6FRtbS17keBVSP32pWl3l3s/Rd8QwbWANCXstth3ubECwufuovwGSQYJBFApCnc3uSSfEnnRAqLty2qHmCb7b/lWOX2t8fuZx7SOH0eF8SqnUvvgfaHjsQb+h3rNYuFwdbCRQqWuQpZjdygC6m291jc9BX0BioQyMrAkEEHbpasVcTCNWSCdzMBIxSORksCREp2sCBc/wAXnRw3rS5Z2seGzDA8aIpALDUx3ZvU+HkNq0qWaI3HaD76yjK5ZkdXkwmJJVrkCCQr/ho7XMZJwdOGkj0i4LRuC1+liK6269GJ2mY3NIowNUim+1xTC5vERcNceW9Vk+XSTj6yF/QobevKlYfJ3QaUhcDwCN/SqVVPbNY/E/KmmzSPxpk5dL/0n/kb+lIOWy/9KT+Rv6U7B45injSfp6eNMHLZf+lJ/I39KbbLpf8AoyfyN/SpI3FOMU4SYA81NZCqb1q3EGWTth5FWCUkjYCNyT8LUF4DhjFMw14bEKvU9jJf5aatqtWyHEoMLECwvoH4UA+0fvSxEG41fhVuMqxGgIIptA5fVurDy5Umfhp5gpdJ7r7oMbix89uVG0ouK8DEI4JBcSGQAi2zLbn9wou4ZF8Lmg8x/wDGtVuY8HTsI2ZpXCnZRG502+FXXCuGlC5jC0MqmQakJjcK1kAsCRudulW+lpfex8/VzfvD/CKyjjjhuaXH4mRSlmkNrtv4eFa97K8HJDG/aIyajcBlKnYAcjVLnXB+JlnkkVRZmJG/Q/CrY0Pb12uu1eldrHlXjep2qlK9JLDyr0MPKrS2XqpwMKaBFLBFI2dVq4mkravTatAhq8vXpt5V58qDt7eu1Um/pXFvSg7KJry9J7UeVeduPKrS2WSKps/zKD6POvaoW7NxYMCb6TtYVTca6GdT21iF/Rbkcz3h0BPLfwoGlxrAlTGSDtcFfyN/urrhhL3WMs6sOCsYiZbi1Y954nCCxNzrn225cx86h8A2wq4XEvdVA0S903AZ5LM1+Y2RfLUDyvUGHEtDGUZHIII7qlhuSfDzprK81CLpkEoAFgNDkc2JB28666nblutk/wBpcN4v/L/nSv8AaPDjq38p/Ksbkz+IdyN5E8AQTbyClSR6XAFRmxuJbdcRJY8rYcjbybTWfl4teda9n3EEDwmNXN2ZAQVYXTWvai9rC6audW8GcYWwCyqANgD3bAchuBWG65diWmk8mZ1B9VCgW9ashDGx1kSajfWyysBrB71lfYA31DbYMNqvCaXlW4QSq4urBh4gg/hTy1k/D0Miyq8UqFgRoSXUL+XbRqOfgVt60bjOsWv6TAMfOKaJx/K2k/dWLjI1u0R17Q6OLI1/SYfFReJaByB/EmoVOy7iHCznTFPGzfq30v8AyNZvuqC1r2khq9vSnteV7euvUHhFeaa69deoutXtdeuvUnle15qrtVQe17avK6pKe1dauvXmqvO7vbV6BSdVdqqRwClimQ9e6qUkLXhNNBq5jSHrGmy1JY0k0EovSDJXaaSY6ESxpiRCftVJ7OvRFVtBnNcgMzBtViBa9gfuP+VDeI4SxV+7MhHgVK/fv+FaX2VJaHyp8sp6DxlZZiOGMaPcEZ9XJ/8AAVHGQ5kP+Uh9H/rWtCEeFepAPCr5mS8IxKTg7Hly/YgG5Pvjr8fOrKHh/MrAdkgsAN2HT0rYBAKWIBWvmZVeGLLst4YxpYdsAFvvpax+ZRvwqXmnDUkZZoyCNroXuxt1DsiKSATt1+VaQIRXdnV55LwgGyRuyIIwuKkYcu7Ci38e6wv8aIVzjFnll8vxlgH/AJ1c/RlPMD5UtcMKt0aUwzbHdMvPxxMI/C9QcxwuNxY0y4DBgeMszSMPMGOMEH0YUVCDzNLEXnWpQEMPgc0wsVklinAO0Z1s6L1EbyNd7dAx+NS8PnDHZ8fFG3VJIOydfIq7i1Ehh8zTc2XxuLONY8G3HyNa2NRRS5uq/wD1KM/uojn5KSabGY4tv0LSuP1nhSND6Fm3q+w+TQR7pFGp/ZRR94FShh1HQVbo6ZnipszEkwZ5rFgymMrpsyEMq/WG1m0npvfYdbKL+2HRWSZEFvdkUFxbbvEK1/Eb3sRejvsRXvZ0+VGoz+WfPU5PA/8A2/zutQ2zniIcsPEfPSn/AO6tN7Ovezo7XTMlzPiJv+XCvqgP4SGnUn4gPOTDj/t2/wDE1pHZivOyFK6Z+uOz5eYwz/wMfzSnP9o85GxwKHzAFj6XxFHvYivOyFXa6U9/KvL11dXndnl6UK6uoRQpQryupRxRXpFe11KIIrrV1dQnlq9tXV1ReWr2urqFp1eV1dUXAV6tdXUI5evL17XVpO116rV1dVAdDUoGurq1BotTSr11dWmLHXpV66urTL29dqrq6kOvXXrq6pOr29eV1Ke3rr15XVJ7evb15XVB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQDxUPEhIVFRUWFRUVFRUVFRAVFQ8QFRUWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLi0BCgoKDg0OFRAPFSsdFR0tLS0rKysrLS0rKystLSstKystKystNy0rKy0tKy0tLSstLTcrLS03Ky0tLS0rNzc3K//AABEIAKgBLAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAEAQAAECBAMGAwUGAwcFAAAAAAEAAgMEERIFITETQVFhcfAGgZEiUqGx0RQyQmLB4SNy8RUzU4KSssIHVJSi0v/EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAbEQEBAQEBAQEBAAAAAAAAAAAAARECEjFhUf/aAAwDAQACEQMRAD8ANonojNglsFzxvQVE9qM2CWwTDQdErUZsEtgmGg7UrUXsEtgphoO1Pai9glsEwB2pWovYpbBTAJamsR8KSc40a0lEuw1rM4sRreWp+Cs5tTYx7E9i0DMyzTRjHxT5/IK5kWYd/dyzWji4Af7lrx+p6ZYgE6A+hUxJvP4D6FawlZ5344bOn7BSGEzR1mqdA76p4hrJ+wRPcd6KJlHj8J9CtkYJH/7s/wCk/wD0n/sqaGk0D1DvqniGsIwTwPoo2LeMrOt/FCf1/cKp74w/vJUOHFtD/tKnif09MWxNYtXaSzjRwfCPP6FT/sq7OG9r+VaH0Knir6jItTWo2NJuaaOBCqMErOKHtStRGxTbJMFFqVqv2RTbJMFNqa1XbIpbMqYKbU1qv2ZTbMpgptTFqv2ZTFhTBTalarbCmsKLrc2aWzRezS2a7OYTZpbNF7NNs0AuzS2aKsTWIBdmls0VYlYihdmls0SWJBiYBtmimQGQ27SL5N3nryUXUaLjoFjumDMxgD93/iFYlaRnI0fKEBDh+9pXpvKeFhMMZxCYh/McvQK4OoKBMXJpgqG5rBRrQBwAATmZQRKYqaoszSb7WUGmU0wb9rTibQVElNXB4mlMTSzgpAq6mDnxGuFHAEcwCg4mGw61ZWGfynL/AElIOUg5XUR+0xIQpEAiM48Oo3KMxLscL4em8cFdWuRWLHjGC8jd+hV+/T4K2SbZIiCbmh3FTsWcXQmyUTCRliaxMNCbJNskZYmsTDQmyS2SL2aWzUxdCbJRMJG7NMWJhoLYptijbE2zTDWrs0tmi9mlYtsgyxRtKNLFEsQC2JrEVYo2IBrUrERYovAGvZRVNia1akHDC4VqqJiSczOlw301omVNjBxyuyIG/wCSD8PyMTN1jqUoDQgHPmtubxKEwgGg4FwNAefDzV7Zyveq1iaGdLubqCE1q0mTCrjS4OYyPeqnldA2JWIadnhCycDX59FlRsajOyhw/MrnauNww0xglc/tZx/42t6BL7JMHWO7yU1rG+YBTbFywPsMb/HeoGVmRpHPmppjodmU9q5zbzbPxByuhY5FGT2A/BXYmVvWqQCz4OMMP3mubzpUeoWjKkRaWEHmNB1WkJZGMy7nOyaT7IzAPErrYcBkMcTxP6KmNOU3rciMXCIDmwqOCMtUZjFQ3NxFCaAe8eAAzJRbIYe4BmdRU/lruPNLE0Nalatj+ywG1JzWHNTbYcQMOhNK8OqmLqdiexX7NKxRVFiViIsStQUWJjDRNiRagFMNNs0TamsQatqVqusTWqopLUxarrU1qCksUbFfamtRVFi5zxFNlkZrRoGg+ZJ/QBdTauP8Xw6RgeLB8CQojqvD2LB4ArmuidDDxVeQ4ZPGG4EFekYHioiNGa2yHxbCa+23J3wcOBG9c0+AYQLmA2D78LUwfzQ+LOXpz9Hc0OCwcXww12jMnD0cN4PEIOegTGQINQc6jQjijoMfvksmYh7OsVgIZX+KzfAedXN/KeHnrWtkKPzHEHJRWhOSrYraEV4HeOixI0AwzSnQ8QteFH+v1SjsDm0OlfTmFOudWXGGXlQL3cFtwsPBVzcLC5+Wtc9c7glc7guj/skJnYUp5XXPgngoPgh2oW+7DFQ+QomDFlpBxeGs1Pp1PJdfJy7YLLWgVOpyFTxVUhKiEK/iOvIcEpmMuvHPli3UJqYWRNTYAJJyHn6DeVKaj1T4TLhxMy8exDNGD/FjaV5hunWvJaRdJYe4EOcP4rxpr9nhHcPzHefoutw2RENtKKjBpE5xH/edmT+i0puIGtoiMnGpwMaV5ri81e4rf8TYjUkArka3Oqpasj0HDnXQYbjqWNJ60FURaq8Ph2wYbeDG/IIkNWWldqVqttT2oKrU1qusSLVBRamtV1qVqDUomorAE1FpFRCa1WpFFUlqYhWlRogqIXOeL4FWMfwJafPMfIrpiEDjEttID20zpUdRmoPOHii1cExQw3DNZ8VqHORqrKlewYTiIiNBqtNwBC8swDGTDcATkvQpCfD2ggrTLNxrDyx22hip0c3dEbvBXJzUMQaPZ/cvPs1zMGJvY7lX06HL0s0eKLjsZkxBc4OFYUTJ4907nDogyYUf4H0rlp1RTI3fIVWFEugxDBca0oWOzO0ZupzHx9UQyZy9fnVRW5BmbHV1G8cltQgHAOGYK5JsbcefHKgz+Xeq18CnqO2R0OmmT+Hn81LFbbWJ7FaGp7VlQ7oaGjgA03/JHRXBrS47lhxo+pOp4bh3ktSFqcaN33zWXNzFO9eXVSjx+x8v08zwWLPTWtTQZ1OVBTXl5HmtMiZeA6YjNgtObtXU/u4Y+86vwHMrrZGVa+I1jBSFC9lg3EjUrJ8Pypgy20IpFmKBo3w4Q0HLj1JXY4XKCFDA5IgkAMaua8RYjY055rWxOdDWleaeIMTL3HNPgy8QmC9yWHy972t4kD1KFhipXR+Fpa6ODTJoLvPQfNc61HXtapWqdE4CKiAntUwE9EEKJiFbamLUFJCaitLU1qDRCRClRIhaRAhRKsomoiq7UxCtITUQUkKBVzlS4qDgsalNnGc3dWo6HMLKiMXY+KZW5rYo3ZHodO+a5V7VCgLi01XR4FjZZkTksGNDQe0LCtSpY9fkcUa4aojFIbY0I9F5dh2MEb100nj+VCdVrWcYWNQCWGH+OHnDP5eHe4rIl8QDhd1DhXMOpmK+Wm/LiugxKYZFe+0+2wi4ZilwqOoI3jgRqCuIm4myjkfhiZU4P3eunPJFjpoU1XPrvpTL6+iMgTGhrmKacddeK5GBNmv9MqfPJaktM/Ty7IRXrGFzW2hNfv0dycNfr5ou1cp4MnvbMI/iFRp95v7V9F19FixWNjUelIfmfkK98FgTMzTf3oNDvNdOY5i3FJy57ncSfTQfT+ueDNTWda90y+GdNNN1CNxFk5NUGvr6VPx9BpksyQYZiZhwNziHP5Q2nIccyDrwKBnpupp33Snr6E+DI1TEjjV3ss5NOQp5Z+ZRK9RwxgjRi/8AAz2GdBqVrTsyGiiycNnIcAMgV9t0N8TIGgYxzGkuO6peKcaHgVg+Isb1AKIG8S4xWrQVxcWIXuTT04XuUpWGs2tYIgQ12vhOWthOie8aDo39yfRcrAh1IA8l6NJyohwmM91oHnv+NVmKlanDU6kArgiApWp6J1BGiYhWUTIKy1NarKJqIDCeSaqVUloME6QSQMokclKnRMR0UFbhyVZCscoOQDzMAPYWHQii4Kaglji06g0XoDnUXNeJ5cVEUb8nddx74KK5x7FnzkFalFTGZVRHLxopYUbK4gXDLUZhV4rLb1iSkwYcShV1rma6x05bEhzG40hRecNx9hx/lefIPeVm+LpbOvH4Hcpy7mvuhOza9py4tcKOCvxVl0qAXXvY1oc6gBLg0EkiuRNa+a1KxZjmpebuaHb9/Jwyd8qrVlZj6LnoJtiuZucBEb1GTv8Aj8VowH073fsmtu48PYhs4rH8HA9R/ReoYvMCHLvf+Wg/zZfqvEMMmKOAXpHiHE64bLmub/jsxafirWXOTs3r+2ffeVVhz05rn+/H508zxJUZmc74fusWcmK99/1PqtJFOJTXsHPNxtH+ataeVxXY+C2UY08DVefTTrorW7mguPV2Q9KH1XfYZGEKXFXBpIABNMnOybSupqRkpE6bDcWufHmK/fcILNcoEAuaNeMR0Z1d4LeC57Ep4vNdyDm5kQ2Ngt0a0NHRopnzQLo9xDQp1WuYMlm3FbMvDogsPgrWY2iyjV8OSt8dpOjfaPlp8aLumlcv4cZZDLt7j/6jT9VvQY6sVe4JBOHVTKmJBKiZqeqgVEqJ0yIaiaikkgvSr1+KckpgeSocApZpJV5/JUIkqt3eqsJUHFQVk90VMR3X0Vzih4hQDx3IOahhzC06EIyKh3DJRXGuFDRRIR2KS9ry4aHXkUEFABOwKhcfistaahd3EbVYWLylQixg4fOHI72mvlvC6My49uIDlEa2ooKXNBF1eJbaP8oXLwYVsTlouowp10G06tq0+WnwoqlcdNtttd7kS0/yP9n9QUdD76qvFIFTGZ7zCR/M3sKcs65jXcQD6iqEFy0ShBW7jWL1lJWFXQRj6xT9CufATYmxwbLE6GC9w/8AJjt/4q6YlEjE7++SFerA1VxjQFx3Anvv95aoCWbc9zveiBo6Nyy5ZLtJiGHMYSTRjg6mVHENIAPQmvUBcrIQqGC3fS49SutmBSGrrNc5iUb2lZg8IuNUPOsq5b2BS1AFGmxKwqBFQ2XODRvNEwFAiMNh3RRwGf0UR0sBloAAyAACLhAoZnUoiH5rQLZUKyqrYVNQTBUgVWCpgoJUT0SBSqiGSUkyC4EpVUfVMqJpEqNUxKB3O7yVZcnJUHOQM5yoe5WOKqJ5qEUxFUVdEVSKzJ6DUFc/Fh2mi6yYYsOfl1KrMIQk3CqEYoPaojk5qVo6qOwt1sQt95od5tyKLm5eqEe2x0N3B1vk4U+dFVZeMQ6RweNw9R+yBwlv8Fg4CnoafotPFmu9p7gPZfVtNbLaDzrX1CHwqWcITGke0RmBn7RzoOOZQXQ4RcQ0AkkgADVxOQA812H/AFFwL7PAkqD7kIwXke+KP+JdEK1/A3hJ0N7ZqYbQjOHDOod77hupuHmut8Q4U2clnwHZE5sd7kQfdP6HkSqjwa1BYkP4bhxFv+o0/VbuJYfEgRDCiNtc3UfqDvHNYmL5Q68HM9A9tVFFSMO6Y/la0Lop0eysPD2P/iPYAXfhroTRXTuKu+2Q5YNBDoZe4+5QuAp5t+IQUGBV66bDoNrQs6XgVctyE2gQJ5oFqYRCoK7znqsuG254bwzK6OUbQUy9QkBkMcviFcxVs8lYPL0C0gmG5XgoaG7vL6q1rlBYnBTVSQTBUweqpqpAoi1JRBT1UVOqXfeSj3nl+qbvetIlVN3qmqmqgRPfZUT5+idQd5KCLj3koJyEx71RVUQ91VdFa895qslBGI3JZ0zCqtNDRmKDmZuDQ1Qy3ZuDULFmIZaaqAaKxZeKNpDJ4UPoQVqPiBZc++4FvFCNHw7Ca6K9zmhwpbRwBBqa6HouzwqXgwnXMhMaeLWtB9Vx2DxKaLqpSJkkq107Yqm+Lks6VjVChHmaZK6gTG5WFMC2IwOpodHN6HULisR8LQACbnke6S300XYTMTJYeIv9krNrTlIbGwxa3IA/SirZh0PbmZoby2zUkW66bk8y01KUCMRkVOeixqS0PNFRYloQUGYFFdKtMR9ToFbUxrYTANLt5W7BB4/EoGTh0Gi0Ybeq1Ba3vRWDootClRVFjSVa1UNKuaUFzSpKtrlMHkoEnCZJBMFSVYUggmR32EqdO/JJJaQ1OwkR1+CSSCBA7ookdfUpJKCJb1TWpJIsQe3upVdvdSkkgVFXEYkkoA40NZk3LpJKKwZ2UposqJBoUklzrcHYWaFdPJxEkleU6aUKPRRm4lUkltkBFmKiizZx3spJLFWOejNzVViSS5tiIMJb2Fy9Akkt8p03ILenoimDugSSXVzXAKQA4JJKiQ70VjUklBY1WCnBJJBLyTJ0kCHeSkmSQf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIVFhUWGBUaGRUWFhcYFRgYFxcWGBcVFxUYHSggGBolHRUVITEhJSkrLi4vFx8zODMtNygtLisBCgoKDg0OGhAQGi0lICUwMC0tKy0vLy0vLS0rKy0tLSstLS0tKysrKy0tLS0tLS0tLS0tLS0tKystLS0tLy0tLf/AABEIAKIBNwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHCAH/xABMEAACAQICBgYGBgUJBwUAAAABAgADEQQhBQYSMUFRBxNhcYGRIjJSobHBFEJyktHwI2KCsrMkQ0RTc6LC4fEIFTM0VIPDJWN0k6P/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAQIDBAUGB//EADARAAICAQIFAwIFBAMAAAAAAAABAgMRBDEFEiFBURNhsSLwgZHB4fEycaHRBhQV/9oADAMBAAIRAxEAPwDuMREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBESzjMXTpI1Sq6oii7O5CqBzJOQgF6Jz3S3S9gaZIpLVrnmi7Kfecg+IBkBV6aahPo4JQP1q5J8hTHxgHYYnHsP01PcbeDUjjs1iD4ApY+Ym/6q66YTHi1JytQC5o1LLUA4kC9mHapPbaAbFET4zWzMA+xI+vpemu67d27zMj8RrKF3J7/8pGUTys2CJq662G+dNfvZ/CS+jdM0q2QOy3stvPcdxjIwyRiIkkCJQaglBrSMk4L0TH+k9nvlxKwPYYyMFyIiSQIkditNUky2to8lz9+6R1XWgDdT82+QEzR09ktomtPV0w6OX6mxRNUOt5/qx97/ACklo7WKlUIU+gx3Btx7A0tPS2xWXEiGtom8KRMxETXNoRIXSetOGokqX2mG9UG0R2E7gey8gsR0gD6lDLmz29wB+MxSvrjuzcq4fqbVmMHj8vk3eJzw9Izf1C/eP4SY0Rr1QqkLUBpMdxYgp97h4iVjqK5PCZezhmqrXM4flh/BtcT4DPszmgImt6w68YLBkpVrbVQb6dMbbjsa2Sn7RE03GdM6XtRwbN21KgQ+Sq3xmSNM5bIjKOrROOnplrf9JS/+1vjsyc0D0t4aqQuIptQJ+uG6yl+0wAZe/ZsOJlnRYuxHMjo0SmlUDAMpBUgEEG4IO4gjeJVMJYREQDF0rpGnh6L16rbNOmpZj2DgBxJNgBxJAnm/XXW+tpCrtPdaSk9XRv6Kj2mtk1QjeeF7DLfvHTVpw1KqYJD6FOz1bcXI9BT3Kdq3668py2tRsIBRhMO1R1RFLuxCqii7Mx3ACdGw3QtiqlLaq4unRqEXFIUzUA5BqgcZ87AgczNj6GNVBTo/Tqq/pKoIpX+pS9odr77+zbmZ06AeRNaNWsXo+r1WIWxNyrqb06gG8o1he1xcGxFxcZiYmjdKvTdXVmV0IKupsykcQZ6u1r1co4/Dth6wyOauPWpuL7NRTzF/EEg5EzyrrDoSpha9ShVFnpsQeRG9WH6rAgjsMA9IdHGuq4/DnrCq16QHWAZBhwqqOANjccCCN1iczSWkC5sMlG4fMzkfQvotj1uKa4AvSTeL32WqE8xkg778p0uu9gTKtmSK7ljFYi2Q3nlv8O2ZNPVStUW7VRSvuXZ2j+0bi3heZ2q2jtomu44kIPcW+Q8Zs8JESkcj0zoavhms+YO5xmp/A9hmPhNIspFz48R2g8J13G4RKqFHF1P5uORnKtO6JahUZDw3HmDuMNBPJ0HVrTPXLssfTAvf2hz7xxkpUe80LUHDMzs5vs093azAj3C/mJvUZGOpSzSn6OzDfsjuuf8AKXKCXNzumVCRDZBYnDOm83HOUUcURkd0n2UEWO6QmNwuyeyGiUyTwuIvl5fnnNd09pksTTQ+iMiR9Y/h8Z9xGIKqVG9su7mfzzkO9KdHRUp/XL8Dj8S1DT9KH4/6MZ6kkMBq5WrrtFuqU7rrtMRz2biw7zLmrmjRWqFmF0S2XBm4Du4nw5zd5n1eqcHyQ37mDQ6JWLns27I5Zp3Vyvh/SJ209tb5faHD4SJo4tl35idnqIGBBAIIsQdxB4Gcy1q0F1FT0fUa5Xs5qe78I0uqdn0y3+RrNGq1zR2+DY9UtP7dqTm/sMd/2D8vKR+umsxu2HotYDKo43k8UU8AOJ8O/UsLVZT6JsefI8CO2fGpzkcXnGE+WG76v79z1f8AxfSu6Dtu6pPEff8Aj72MUtJrQeqVfFrt7QpUjuZlLM3aqXGXaT3XjVXQv0rEbLD9FTsz9vsp4kHwBnWVUAWAsBuAnO02nU/qlsdvinEpUv06t+78fucX1n1IxOFU1A3W0hvdQQV7WS5sO0E9tprFPEMs9HkXyM490g6rjDVOspi1GoTYcEbeU7uI8Rwlr6FFc0djFw7iTtl6dm/Z+f3Jbo/1ssVw9VvQbJGP1GO5CfZPDkezdb6VNfWok4PCvarb9LVG+mCLimh4OQbk8ARbM3XnRrmnc/m/CRFYFiWYlmYklibkkm5JPEkzocNrlOLctlsc/jUK4Wpx3fVr9fxMMkk9p+e8zbtTtQsTjxtqRRo5jrnUttEZEU0uNq24m4HDMggYmpGrhx2LWjmKY9KqwyIpra4B4MxIUd5PCekMNh1potNFCogCqqiwCgWAA4C03rrXDotzjpZPPuuPRRi8KhrUqn0mmty2ypWqo59Xc7QHMG/Zac8p4hlzBnsqcG6ZtRlw7/TMOlqNRrVEAySofrAcFb3N9oAY67XJ4e5LRa6K9f8A6M4oVm/kznj/ADLE+uOVMn1huHrc79+njKm5Vrz0b0OazfSsJ1Lteph9lbk5tSN+rJ5kWK/sgnfK3Ryub8xF9joERE1yx5p0pizXrVazb6js2fAE5L4Cw8JiYPAHE4ihh131aiqSN4UkbTeAufCfHbKbL0QYUVdKqxH/AAaVRx3m1P4VT5SQd6oUVRVRQAqgAAbgALADwEriJAE5N08auh6SY1R6VO1Op2ox9Bj3Mbf9zsnWZgaewaVsPVp1BdGRgR4XB77gGAaNqro76Ng6FG1iqAt9tvSf+8xmTi7tZRvYgD8+UyKryjRJDYukp/WYfsgn5CYzNsjdcLQCIqDcoA8uMuxEyGESA1w0cKlLbA9JP3Tv+R85PyisgZSDuIIPcRBKIPVjB9Vh0HFrue9t393ZHhJOocoQWAAGQAHlKHcbSg8TKFjNprYASqIlyglnFUtpe6XogGoY71yOWUj8W9lMysTVuzHmT8ZHVztMie26r5m07dMeWKXg8zdN2WSl5Zumr2E6ugg4sNo97Z+4WHhJKfAJ9nGnJyk5PuejrgoRUV2EjdYNH9dRZbekM1+0OHjmPGSURGTi1JdiZwU4uL2Zxw07Eyms1gTM7TJHX1dkZCo4HgSJEY+p6PeQPEmwnL1dvq3Sn5Z7PhemWn0ldfhdf7vq/wDJ0no/wHV4RXI9KqS57jkvhYA+Jmyyzg6AREQblVVHcoA+UvToQjyxSPJ32u2yU33Ykfp/Ri4ig9I/WHonkwzU+fzkhElpNYZSEnCSlHdHmrTFMq+wRYi9xyINre4yNqZTZekQr/vHEhRkGXzKKzf3i01TF1LKTOppK/SojH76jWX+vfKzydo6E9E9Xg3xBHpV3Nj+pTJUD73WHxE6LInVLCClgsNTH1aNO5HElQWPiSTJac+yXNJsolhCYemdGpiaFShUF0qKVPMX3MO0GxHaJmRKEnkPTujHoValJx6VNmU96m1x2G1x3zYOijThw2kKJJslQ9U/2ahAHk/Vm/IGbL03aICYwVQMq9ME/bT0G/u9XOXJ6LbyO0bx2gze6SSfkxnsiJH6vaQ+kYWhX/raVNyORZQSPA3ETRawZDzNXqToPQHTviMY/spRX7zVCf3BOX1K06v/ALPf9NPbh/8AzyQdhiIkATD0w1qL9w95AmZI/T5/QP8As/vCGStzUazyCxWkupxmDb2sTRp+FXbT5iSlZ5puuFW1XCN7OKwzfdLn5SiMj2O8xES5iEpfcZVKam4wDHJkPpvEbOyeTIfKoh+Rko7TWdcG/REyjMi3N0iUo1wDzAlUuYxKKzWUnkD8JXLON/4b/Zb4GStyJPCZo7vlMXD+liaA/XJ8kYj3yl6sp0ab4ml/3P3GnesXLXJ+z+DzNPWyK918nSwZ9lrCm6Kf1V+Al2cA9OIiIBx7E1dpmbmzHzJMjcWbsg5uvxvLpq5TFZrvT+0PgZyKfqsjnyvk9zqfo082u0X8Hb9G1dqlTbminzUTJkTqo18HQ7EA8svlJadqxYk17ng6nmEX7IREShc81614jaxuKP8A79YeC1GUe4CQOJN7DmVHmZIawP8AyrE/29f+K8i9q7J9tP3hOrKWIGKKzI9Pan1trBYc8qYX7nof4ZMTVujR74Cn2PWH/wCrn5zaZx63mCfsbmqjy3TXu/kRES5gOd9MuizWo4cr6wqsg7nQsf4YnE9OaBegoqMR6wFhY887qTynfelq40eWBsUqUiD3nZ/xGefNK42o4szsRyJy8pt1czgvBR4yeg+iDFF9FUL70NVfAVGK/wB0rEiOgWtfR9UeziHHnSot8WMTXs/qZZbHBmadZ/2ea36TGrzXDnyNYH94TkbTYdSNbKuj3rvRRWeogUF77K2a+1si20ey43yhJ6lieZcR0laUZi30x17FSkFHZbY+N5teqvTLWVgmOQVEyHXU12ai/rNTHouPs7J5A7oB2+R+nxfD1O4HyIMv4PH0qtJa1OorUmG0HB9Ejnfh8rTV9OdIOjEV6bYtGJDL+iV6oBsR61JWGXfARA1nmpa5U9oUDyxFH37a/FhNlNUMAwNwQCDzBFwZGYqmlSrTpuxGyVq5C5JpOjKvYCR5Ayhlxk7VE59W1pqscqluwAfhM3R2tdQG1QB15gAMPke7LvlslOVm6SmpuMt4XFJUUOjAqePyI4GY9fS1FcjUHhdvhJKlupNd1sX9A55A/FZsAcMAwNwdxkTpdVfZos2z1u0LjM2Aube4eMxvYyLc2egPRXuHwlcjPp98gZdp4s98vkpgzpbxC3VhzBHmJ9p1ARcQ1UDjJyQ1nocsZ5Xop7Ymj9ph5o8+6Uw/V1XTkxt3HNT5ESP+linUpMf6xbe+ehn9dbx3Xyjy0M12LPZ/DOuYL/hp9lfgJenOMRrRXNgr7IAsAoA3d+cvYDW2up9MiovIgA+DAfEGcv8A6FmOx2f/AEqubGGdBiYWi9J0667SHdvU+sp7R858xel6NM2eooPIXJ8QLkTV9OWeXHU3fVhy82VjycYxY2XZfZZh5EiYyt6afaX3m3zkjrGF+k1ShurMXU2Iyc7W48iSPCQuIrBNkn2k/eE4yTrtw90z3TnG/TZi8qUflHb9Uf8Ak6P2T72aTE46Na8QiJSSpsKihQFAubcSTc3mVo/XjFIfSYVV9lwAfBlAI8bzfs1tcptrOMnnK+B6iNUctZSXTP7YOsRInV/WClilumTj1qbesO3tXtHul7SGm8PRNqlZVPs72+6tzMvPHGc9DQdFin6fK8+DzXrfTKY7Fqf+ornwaozD3ESGV/SU8mU+RE2fpM2G0hVq0m2qdbZcGxFjsqrrYi+9b/tCanVNhOjGSlFNGGUZQliSw0el+jEfyFf7St/EM2ueZ6fSDjqdJaFCqKNNSx9BFLnaYsdpnB4nhaZWiulLSVFrtXFZeKVUW1uNmQKwPie6adenlGCTM2ptVl0pLZtno6Jqeo+vmH0iuyv6Kuou1Fjc24sjfXXtyIuLgXF5fTWsmEwn/MYinTJFwpa7kcwguxHcJVxaeDEQXS23/ptTtej/ABFPynnXGjOdd6SdfMFi8IKOHrMzdahINKqg2QGzu6gb9nznI8Uwm7Smq8Mxy3O2dAA/kOI/+S38ChPszeg6hs6M2vbrVm+6RT/8cTUs/qZdbHFdPYZDia9sh11W1uXWNb3SKxOH9Ehcjw7++XqtYnifz8Zju55ypJhYOptXB3jzkjTpEb/OYigLUFQ5Kcm5AnjNnFNNjZPH3dogGJ9JqdT1PWP1JbaNLaPVlshtFdx3DyvMMVqe7aF5c6y1weGUwMDorrsSlIfzjgdw3t7gTAOtaKYjC0c/5tPLZFvdaR9Skdsve7Hj/pwm1JRVFCqAAoAGXACwHdMPF4ZG3jPmMj5zXcZPubKkl2Nf0XjCzmm3rC9jxy3i82HDXG/z/PGQGKwpo1Urb1U2Yj2SLXI5gHxtNqoldngQR+SDLoo+hk0KzKCAxCm20AcjbiR2fnhKWx1MHZ2xflMejU3jl7+RkFpLRO3iBskjrCoAB4kgfhJIOh4PEMtJbEcd+7eZE4oFn22a53dw5AcJtGCwKUkVAL7KgXOZyHbKMVhKb+sg7xkfMTE4SfcspJGtaLxrdZ1T579k8cs9/dNloE8fP8ZruktHtSZaq+kEIPaRfNT77Ht7ptGEdWUMCCrC4PAgy8W+5WXsXQTw/wBZafEqDYsJUjWNuXwkJpzB3cNtEAjMDLMcfzyliCG1ub9Pl7C39/ytNUx1PaNyb23dknWJJ2mzJ55kDgLnkLTHrUlbeB8/OelqXLXGL7I8ndLntlJbNmuYTGstUU3zDbr9u6x902GkpHd8JCaX0awAdMyh2hzyN7HmJsejsQrorruYf6g9oNx4SF0ZLSkjJwzstyrFSRbIkXB4ZS21ZF3kAykNY24cPwkZpnDbRDXI4G2V/wA/OW90Ua7MxNZag20Kn6vzNvnNdxN2OZ3bhwk1To8Tmc7XzsL5b/PxlNZFO8AzxervVmonKPk+tcM0kqdFVXPdL56/4NeXGslQK2asRv7ePnJ+ipkTpPRm0vo7xmOY8eIk5ofEB0D8dxHJhvHnNd7ZRux3wzJwlZkO0jsrWIDKSDmLHMTHNZVPpNmee/vl1yActx93MSM01hdvZNyLb7cQZXfoX26mBrgVYUiM/X/wzVqiTPxrekRckLkLm/fv7ZiVDPTaSHJRGL+89TxHEbVbqZyX3hYMOo9t8uKsprU75S9hGuO0ZGZUss0i9gsQ9N1qU3ZHQ3V1NmU8we4kdtyJ9etclnYlmN2ZiWZjzLHMntMt1Mj3yxik2hLPoDMBB3SxiKF+wyxhBZspluZCfMgenNRsAlDR+Fp0yCopIdoG4ZnG27AjmzMfGJqPQfpk1MNVwzG5oMGX+zq3NvB1f7wiaNkcSaLo4TXe0otleZOk8G9Ko9N1KvTZlZTwKmx+G/jKKV77spUkx1YC4OanIjs594lWGxbAbBN9nIHmOH4eEoqixPeZjXs47QfkYBmtUzvJXU5x/vDDE+0/mabge8iQjHdMrA1jTZag9ZGDL3qbj3iAdrx1UqpIFyOEspUDi6kGfMLjEr0kqobq4uOzmp7Qbg90qpowKqq2AI9K43cRbfMT6GZdTHqWzBFwciOYkdo+uabNRJyXNPsHh4H4iSmLFmMg9InZrUW5llPcR+NoIJlKuYPPL5j5+cycO4+kYcn+tT94SKWpu7xM/DN9bluPx+UkHRsZVKqSBc8B28JiYPGCoMiL2vYHMeEqwuJFeiHHHf2MN4/PMSyuHZbKifWBDXA2c7tcb91xlKttBJGQw/0+UjdHsaNVqF/Qa70+z20+f3pL1xnIbTZ2WoPxFVB4Odg+5jD8hEuDmD4ef+dpZ0qLp23y8Zdb8PjLqZ58pZMho0CqbCYuGrbY4BuI7eMl9OYTYqMOBzHceHgcpGBCB6C3J7RkeZvPTQkppNdzyNkHXJxfYpbKRVF+prbAyp1blRwVwMwOwge4Sbxq2I7pA6w5Uw/FHVvIyJExJU1OPKfMS11lotkfGXaclMhojKxtfsmBSxN8jYHPKSmkEFzyP5MjFS24XM8LbU67JQlumfYtNqVqKIWwfRr+V+BU8wjU6qoGGS1MmHAP9Vh37vKZ9YZDnaRmlR+jbsFx3jMfCVRlkSRq+6fa7XUzFpVLgHmJkUc7SCcmoY7J3v7TfGR6VbmbBrLh7Ptjc2/vGXwt75BU1twuZ6eiasri14PC6up1XSi/JS4llm2TfnkfxmbXX0QTvmDiBkZeSwa6Lxa8pLZS3TbId0rp5yM5JLmGXjLjtKXe0tBpOywDpvQVWP0+qvA4dye9alK37x859kr0BaKa2IxbD0Ts0kNt9jtVCOYv1Y7weUTUueZFkS3Sp0fHF3xWFA+kKLPTyArKN1ichUAyBO8WB3C3CqodGZGDKymzKwIZTyKnMHsnretRc7qlvATVtZNQaWNN61S7DIOKahwOW2M7dl7TESeaTMPau9+AyneanQZhz/TK9uQCeV7XkhozocwdEg7bMRu21U+NjlAOAFCLFgRcAi4IuDuYX3jtlL1DPT+M1Cw9UAVi1QDdtZ27uUwR0UaNvc0b+Jt5XgHE9RtPvRq9RsvUSofUQF3Rt22qjMjdcePf0+qWQkZgjgZuGC1HwtEWooKf2VAjGapBxbrivcikjzkNFlLBodQyBxtXbrqBup3uf1jladIrdHxYWOLe3Yig+Yz8p8wvRtSS1qzWHDZW0jBPMjRqanIkEDgbb+GXOXKuKNrDITo76l0mAD1KjW7fhbdKBqFhuJc/tH8YwOY0jVzTjYepaxZHI2lGZvwZRz7OPlOjJV4jj+dx3SxR1Nw6eoLHnvPvMrfV1h6mIZO5VPuMYI5ismQ2kH62vSpLn1bCpU/V2c0B7SbZSWbQdci30od/VAMfFWFvC0s0tV3UWXElBe52KagseZZtpie28q4sspJF9zPjVTuGUtHVFTm1eqTz2iD5gzIp6tgfz9bxcn3nOW5SOYjtIYIVUtuIzDcj29k1LEK9JtlhY+YPaDxE359WKZzL1G+0zN5AnKWMTqoHGz1pA+yp+M29NqZVdH1RoavSRv8AqXR/Jz6pVJzMhtNVdspRGZJDN2IDck9+6dGqdH1/6W4/YS8t4bozpJe1d88ydkXY9rG5M3Za2vHc0I8PtT64NKDG17G17X4d159bEHcJ0gal09nZNVyvLcPISgahYbm/3j+MxrXrujJLhsu0jmjteW8Th3p2Loy7QuLi1x2XnVaWpWGXMA35kk/EyrE6qK6ldvI8NgEe+c7XKGoaklh+Tu8H1NugThJ80X28PyjjtR7yM0rUuOrHrPl3DiZ1et0YId2KqL3InzlvD9E9FTc4ioxO8kC58ZzlpZ5PQvi9GO/5HNaam2QNhYE2yF91zwl3rrDKdgoakUlTY6x9n2RYDyEsno6wnJvM/jLPSPyYVxuGesHg43iQHBDcfzcSE0hoytRCu9NlR77DlSFa3Inj2T0NQ1DwiG6pnzNz8TL2K1TR1KFvRORUorAjtDZGbelUqd308HO4hq69Thxjhrv+h5kdyd8xcU2VuJneMZ0MYdySuIqJfgqrbwBBtLWH6EMKpu2IrP37I+E3XcmczlOG0qZINgSFFyQCQo3Xa24X4mfQ9p6X0fqBQop1aOyqd4UBb9ptvPfMar0W6PY3ann2ZfCV9ZeCcHm8tzm2al6jYjHuCb0cPf0qz5XHKkp9c9vqjieB7bgujbR1M3XDrccTmfMyfoaGopuSVd3gnBXofAUcPRShRAWnTWyi9+8k8STck8STEyUoKNwE+TCSXYiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTExEWFhUWFhUWFxUVFhUWFhUXFRUWFhcVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zOTMtNygtLisBCgoKDg0OGA8PFS0fHR03NzctLi0tKystKzc3KzErKystLSstLSsrLzctLSsrLSwrLSsyLTUrNzctLS0rLS01Lf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAQL/xABKEAABAwIDBQMIBwYDBQkAAAABAAIDBBESITEFBkFRYQdxgRMiIzJCUpGhFGJygpKxwRVDc6LR8CQzwoOjsuHxFlNVY5OUs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAEEAgP/xAAeEQEAAgIDAQEBAAAAAAAAAAAAARECAwQhQTFREv/aAAwDAQACEQMRAD8AnFERAREQEREBERARYPefeuloWYp5POI82NvnSP8Ast4DqbDqoV3p7Qa2tuA801OdGRk+UePrvFifk3P2rIJj29v1s+kJbNUtxjWOO8jx0LWXw+Nlp1Z22QC/kaKd/IvLIwfFuOyh9jGt9VoHU5n48PCyG5VoSee3CT/w1v8A7o//AIK9pO3CDLytFM3n5NzJAPxYFEWBPI9EodEbG7SNmVJAbVNY4+zMDEb8gXeaT3ErbGuBFxmDxXI8lKCspsDeWuoSPo1Q4MH7p/nxHpgPq97bHqlDqVFG+5/a3TVJbFVN+jTHIEm8Lz0f7B6OyzAuSpIBUBERAREQEREBERAREQEREBERAREQERWm1dpRU8TppnYWMFyfyAHEk5AIK1TUMjaXvcGMaLuc4gNA5knRRfvf2p2DmUYsBkZ3DM/w2H83fDitS3w3wmrn5kshafMiByH1n29Z/wAhoOJOnyOxuN/UZqPeJ0b8j4AoKlRUPlcZpnF7nZgPJcT9Z5Oo5Dj3a0nOJNyV8veSblUZJrKi6FkMgWNkqeZA7zZUjO33x8Qgy4lCqNeFhg7kV9CQ80GaDQV8vhWLZVEK7iruaD2WlB4Lbtxu0Oo2eWxS4pqXTDrJCOcROrR7hy5W465HIHLySK6Dp7ZO1IamJs0EgkjeLhzfmCNQRoQcwrxcz7ob0T7Mmxx3fC8jy0F8njTGz3ZAOPHQ9OitibXhq4WTwPD43i4PEHi1w4OByIUF8iIgIiICIiAiIgIiICIiAiIgFQJ2j72msnwRu/w8RIZY5SO0Mp+Yb0+0VIPa3vD9GpPIsdaWouwWNi2MAeUcPi1v378FBJcgVU1mlUi3C0N5Zn7R1+GQ8F443e0cB5x8M7fIDxXzK7iVYHtPBJLIyKJhfI84WMbq48unEknIAEnIKad0eyCmia19b6eXUsBIhYeQAsZO92R5BVOxrdAQQCslb6edt2X1jhObQORfk49MI4FSUgsqHZNPCAIYIowNBHGxn/CFeOaDkQCOq9RQYbaW6dBP/m0cDj73k2hw7ngBw+K0nbvYvSSAmllkgdwa4maP4OOP+bwUnog5d3p3GrqG7posUQ/fRXfH942BZ94AdStZXY7mgixFwciDoVFW/vZJHKHTUDWxyamDJsUn8PhG7p6p+rqrYhGOYhZOmrL5FYypgfG9zHtLXtJa5rgQ5pGoIOhXyxyDPPYCsxuJvY/ZlQSbuppSPLMGeHgJmD3hxA1HcLazS1XAq7lYCEHU9NO2RjXscHMe0Oa5puHNcLgg8QQVUUM9i+9pjf8As6Z3muu6mcfZdm58F+Rzc37w5BTMoCIiAiIgIiICIiAiIgIis9s1wgp5pzpFG+Q/caXfoggPtP2z9I2hLY+ZD6FnL0d8Z/GX+AC1PEvkyE5uN3HMk6knMk95X1DC5/qi4GpOTR4oKMRzee4fr/pWV3P2P9NroKYi7HOxSfwmDE8dLgYe9wWMgisDiOueXcpM7BNnB1TVVFv8uNkTT1lcXOHeBEz8SomsC2Q0XqIoCIiAiIgIiINE7TOz9lfGZYgGVbB5rtBKB+7kP5O4d11zrPC5jnMe0tc0lrmuFi1zTYtI4EFdiqJe2rckSMO0IG+kYP8AENHtxgW8r9pgGfNv2QghZhV/Rz8Csa1Vo3WVF/UNcCHMcWuaQ5rhq1zSC1wPMEAro/cHeUV9GyfISD0czR7MrLYsuAOTh0cFzpE7E1bX2S7f+iV4hcbRVVozfRswv5J3jcs6lzeSSOgkRFAREQEREBERAREQFqvahj/ZlQ1gu5wjba4Fw6VgdmehK2pax2j3+gvtwfF/xtH6oIMpNhtb50pxH3R6o7zqfyVfaJwsOVhYgDTgTpw0WaqK+KEDAMUvo8Ra42bhYC9uLMG7wNOThcZLTtq7QuLE8/nf+p+JU7XqloDdo7h+SmbsDgtR1D/eqSPBsMX6kqHIILt10y+CnTsShtswH35pnd9nYP8AR8lUb8iIgIiICIiAiIgLxzQQQRcHIg6EcivUQcw9o27H7PrXxtHoZPSQn6hObO9huO7CeK1oFdE9sO730qgdI0XlprzMtqWgelZ4tF7c2NXOjSqL6jksVWrYzq0kEWIIyIIzBB5g2VjC5ZP1mqjpHcvbgraKCpyxPZZ4HsyN82QfiB8LLNqH+wXa1jU0bjyqIxfgbMlAHIERnveVMC5BERAREQEREBERAWK3p2e6opJom+s5hw3yu5vnNF+GYCyq+J5msa573BrWguc4mwAAuSTwCDlOqqpXyGJkbi8EtcyxxNINiHD2SDrdX2y91sUjGzPxSPNmxMPicb+AABJtwBWY3s3ndVVMskIwscbNNrEtaLNLuNza9uF17JeiiLb/AOLmb6R3GCM/u28nm2Z4W6AnNOzLOf5xaYwxwi8mO2rs2GWtjpqduBhlipw5gz86QNfJ1IxOP3eS6M2NsyOmgjp4gQyJoa2+ZNtXOPFxNyTzJUKdkGxTPX+Xt6KlBN+Ble0tY3rYFzulm81PC0RFRTPM3NiIiqCIiAiIgIiICIiDxwvkcweC5Q3s2P8AQ62emscMchwfw3WfH/K5ufQrrBQb2+7Ow1VPOBlLE6M5ZXhfiFzzIm/lQRjBGb8vmszBSWbfEe7Kyx8KzDJB5MoMp2ZVgi2tTm5Af5SE24+Ub5t+mJrfkui1yxu64iupXDhU05/3zF1OgIiICIiAiIgIiICiTtQ3ifPIaKE2iYfTEfvHjPB9lvHm77OcpbTqDHDJIMyxjnAcyGkgfFRBQ7JN7uzJNyTqScySvDfnUU0aMLm/xh9kULInNkeLhpxWOlxmL9LgLXmsmrKlsUec1RJYX0bkSS76rWgnuat63mp8FMXaZ2+LXLVezreKmoq109SXZU8jWNY0vcXufHllkDhDsyQNbkZX54/sryfIT3uvsCKhpmU8Wjc3OPrSPPrPd1J+AAAyAWWUUVXa1LICKajw30fM7ER3xsyv95a5XurqvOaqe4H2CSyP8DPN+S0sybptq07DZ88TTydIwH5lVqeqjfmyRrvsuDvyXPP7FczVtvyVeKgsQQbOGhGRHcQrQ6FRQ3snfGtpSAX+XjGrJSS631ZfWB77jopK3a3mp61pMTrPb68Tsns7xxHUXCgzSIiAiIgIiICj/tt2WZtnGQC7qeRsuWuDNj/AB+I/ZUgL5kjDgWuALSCCCLgg5EEHUIOPxK7RoVeCnlcRcgd5/otg7SdkfQK6WJjMMTrSRDOwY8Zi55ODx4BaxBVuIDs9TY2IBta9iddQgkTs12F5evj8o9gEJE2EXvIWG7Q3oHYSeg65T8ubN39qPifHURHz4ze3vDi09CF0JsPa0dVCyaM5OGY4tPFp6hT1fF+iIqgiIgIiICIiCy2y28Ev2HXyJytnkNVoIdIR6NgYPfkF3H7MQOXe4gj3SpEr23iePqO/IrUHwrFyvsNvF+S0/eumwU0j8TnPAAxuPnWd5pAAs1gIOYaACon2a/C8ONiL5jQkDhexU174wD6FP0Zf4EFQfRuyHj+ZXfF+S45X2G+7O3gpxrHh7xYfiF7eK2fZ+1KaSzQ7C46NdbP7LtCoqYV935LUypaqWgLD1LQNPh/RavsjeaRnmSkuZoHaub4+0FmqiqBFwbg6EcUHk0oKx7ah8UjZYnlkjTdr26j9COYOR4qnNOqMkt1RNW4e+rK1vk5LMqWC7mDR4GRkjvw5jUX7ituXL0VS+KRssbiyRhxNcNWkf2RbiCQp63D3tZXw3Nmzx2EsY4E6Pb9R1j3G44XIbOiIoCIvmR4aC5xAABJJNgAMySeAQfS1/eDfKjpCWySYpB+6j85/3uDfEhaNvp2hvkxRUjiyPR0wye/mI/cb9bU9OMU1e0ACbFWhuvaLvFDtRrGiAxOjLsMpcC4tcLOYWhtrEhp1NrdStQ2wKiRjI7s8nHm1gbh4Wvfie9W9LW4jZbBs2PGCOiUNZ2bVOjfZwt0KlDsz295CqEJPoqjIcmyeyR36fBRvtGMYiCOKrUO0C0tt6zHBzepabgDrkpMLDqlFQoZ/KRsf7zGu/EAVXSEkREQEREBERB44XFlqkthcciR4g2K2xQb/ANsDS1FVDKxz2CpqCwtIxNvM8ltiQC25vrlfjwz79c5x1499GyMZ79ZntErhHQTX1cAwdS5w/S58FClK2wAWx717emr5GsZG7A0nBG3znOcfafbL9BnnmstsLs6mkbimlbDyaB5R33rEAeBK60a5wx7N+cZZdNVYvtbVtLcKaPNkzJOhBjPhmR8SFrNTTPjOF7S09ePcdCO5ezwUHBXFDXlnmn1eI5dQqDlScEGZllvorcTW7lb00mVv7CSFBXlcrjYO2paOdlREfObkWnJr2H1o3dD8iAeAWPjk4Hw/ovhyo6j2BtmKrgZUQm7XjQ6tcMnMcODgclkVz12Y73/QajBK61NMQJL6Rv0bN0Ggd0sfZXQqgKH9/t8PpLnQQutTsNnOH75w6/8Adg6c9eS2LtT3kMUYpInWklF5CNWRaW6F9iO4O6KGtrVGBuEKwLLbG0bnC3RYUr15uvnVBVof8xvVb/u3Hk88mrStm0x8o0nrkt/2Y3BTPdzQaftc+ee9YxXtY67irXCqJD3G7QJaNwimu+mOE4dXQ4wHXj5tF/V+FtDO8EzXta9pDmuAc1wzBBFwQeVlyvIzMfYj/wDjapz7H9oGTZ4YTcwyPiz93KRo7gHgeC5G8IiICIiAiIgLnjtMoDHtKdoGT3Nkb18o0En8WL4LodRB25Uwjlp6kAYnMfFbqwhzDbl6R+fcg1rY80FMBjc1pOvFx+C2Wl3qpnCwl+IIUTFtzcm5OpKDoglOu2mDmDccwtd2hUB4IcARyK1qk2m9mRzHL+hV+6TE3G03HEcW945dUFlW0mHNuY5cR/UKxKyEkqsJTmg+GvLTcf8AVXcguLjQqxcVWo5rGx0PyKA4L6BuFUmisVStZB8uCmvsn31a+kkhqH2fSRl+InN9O0ZO6llsJ72cSoXIXkczmHE0kZWNjbE06tPMG2io2+rrX1M8lRJrI4ut7rdGs8GgDwWnbXqMch5LaJZA2mdID6wFj3rSXO1Ko+cNzZZGmpQ0XOv5KlQQZ3PeVfvXIqbMiu8nw+K2nbsnk6drOJFysXu5S3IJ09Y93BU95a3G8gaDJUYB+q8DVUwK62bGDIy+gIcfst85w+AKouKmOz3AaNOEdzPNHyAUpdh03mVUfJ8T/wAbXN/0KL3A6nXit+7Eqi1VUx+9DG78DyP/ALAuRMSIiAiIgIiIChjt8kP0ijbwEc7h3l0QP6KZ1E3b3QEspKgaNdLEf9o1r23/APRPxQREvF6CiD5IX3TTuY7E05/3kRxHReFfJQXtXYt8owWGjm+4Ty+qeHwWNkcrinlwnmCLOHMHgqE8eFxGo1B5g6FBTxLwpZfKDKUUuMYTqP7B/Qr7dAsXDKWkOHDhzHELbaGISNuOQ+B0KDBvisqb2ZLZJNnZELCTRWuDwVgUZq+9MIuLHn8JzHzxDwCxIFyB4qvVDNU6cXJ+CSMnTNs3vVeKLEQOf5cV5G3gsjGBE3E7U8FBeTVQhjIHrFa6CXG5VOoqXSOuVc07F0Hk1e7Ni9d3IBo736/ytcPFU8KykENmNHe497rfoG+N1JFnKxZvsmrcG1WDhIyWP+UPHzjHxWHrDhaTyCqdnYP7QpiNfKt/W/yuoOkkREBERAREQFgN+th/TKGaADzy3HH/ABGHEwX4XIt3OKz6IOSAeluhFiOhCOW/9r+6ppqj6VG30M7iXW0ZKblw+9m4dcXJR/dABXrl8r1xQfJSY3aOY/Irwlecx0QUgV4QvWr1B82Wxbo1dnYDpr90nP4Gx8Vr9lX2fNglY7qAe45H87+CCTZ4AFqG3WBryeYv+hWyvq/Rg8bWPeMv0+a1Tbk97eKDX6t2a92UwvcA0Em507+KzewaAOD3vaCD5ouAdMyc+tvgsjJWw07bNAvyAAHyVHsNK2FuOQ58Ate2jXGR3TgFT2htJ8rrk5K1aguoFkIXLGRlXcT1Rl6OPE4Dhqf6LMvCw9BIAOqyP0kAEk5DNcjEbeltZnE5nu4LaexrZZkrfKW82Bjnk/XeCxo+BefurRaiYyPLuZyHTgAuhezfdw0VG1rxaaU+Ul5tJHms+6LDvxc0G1IiICIiAiIgIiILPa+zIqmF8MzcTHixHLiCDwINiD0XN++e602z5jG8XjNzHINHtv8AIi4uOHUEE9OKw23seGriMM7A5h+LTwc08Dn+Y0KDlO/9+K8ut0307OKmiJfGDNBrjaLuYP8AzGjMfaGWXDRaQCg+rr2PX4/kvi6u6SnJ/vQIKDY18SDNZOWEMFz/AH0WLcbm/NAXjgl0KDZm1pMbeoB+ICxlUbqtQRlzWtAJNgLDnYZKbdg9n0AoDBPH6WWz3vHrsfngDTwwA2tobu5oILl2i4NDG5ACwWLlcScytk3s3blop3QyZ8WvHqvYdHDloQRwIPeteexUUgF9tXi9BQVQqzHWVFoXt0F/DPZVJ5y8YRpxVtRUz5HBrWkk5AAEk9wGZUtbk9mWbZaxtmjNsB1cecttB9T48jBbdlO5ONza2dnmNsYGH23DSUj3R7PM56AXmBeNAAsBYDgvUBERAREQEREBERAREQFrO29wdnVRLpKZoecy+MmNxPN2Cwce8FbMiCJd4uyBrWY6Fxc8axTOycOTJG4bHo7I8woyraqeB7oXwNie3VjmuDh1sXZg8DoV1OsXt7d+lrGYKiFsgHqk5PZfix485vgUHK88znm7jf8AIdwVMqXtudizrl1JUi3COcEW/wBqwHL7nitVq+yzarNKZsnWOWK3+8c1BpS+4oy4ho4/3/yW7UPZNtSQjFFHEOJklabeEeK6k3cns0goiJZHeWmGYcRZjDza3ieROnQ5oLbs23G8g1tRUt9Kc2Rn93f2nD3+nDv0kREQa7vpunFXxYXHDIy5jkAvhJ1BHFpsLjooA27u3PTSuilbZw77EcHNPEHmuoVi94NgwVkfk5m3t6rxk9h5tP6aFBy26ktqV8hllK+0+yWpxehmhe365fG74Brh81aU3Y9WOPpJoGDm0yPPwwtHzQRnZbXuZuJUVzg62CEHzpXDLLUNHtu6DTiRxlHd7sqo4CHSk1Dx7wws/ANfE26LfI2BoDWgAAWAAsABoABoEGI3e3YpaNobDEA61jI4AyO5ku/QWHRZlEQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxESEhMSExIVFRASEhUVFRgWEhAVFhYVFxUWFxgTFRUYHSggGBolJxUVITEhJSkrLi4uFx8zODMtNygtLi0BCgoKDg0OFQ8PFTcZFRkrKystKzcsNzcrKy0wLSs4KzcrNzcvNy4rKysrOC03KysrOCsrKy03NysrKysrLSwtLf/AABEIANIA8AMBIgACEQEDEQH/xAAcAAEAAAcBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABFEAABAwIBCAYGBwcDBQEAAAABAAIDBBEhBQYHEjFBUWETIjJxgZFCUpKhsdEUI2JygsHwJFNjosLD4TNkc0N0srPxFf/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABkRAQEBAAMAAAAAAAAAAAAAAAABEQIhQf/aAAwDAQACEQMRAD8A7iiIgIiICIiAiIgIiICIiAiIgKjW1ccLHSSPDI2C7nONgAo1dSyJjpJHBsbGlznHYANpXB89875K6Swu2lYfq2bL/wAR/wBo+4YcSQ2DObSdLISykHRR7OkLQZHcwDcMHfc9y0epylPIbyTSuJ3vkkPxKx7p7KDahVllafLtXBiyeUAcJHj3XxW1ZE0oVLLCQtmb9oBrvBzfzBWjseCORWGqyYn23HYg9L5vZ40tXZrXakp9B9gT907HfHkthXlagynYjFdm0dZ6mbVpp3Xef9N5OLreg47zwO/Zt2xddDRERRERAREQEREBERAREQEREBERAREQEREBEWk6Uc6DSU4hidapqAQ0jbHHsfJyONhzN/RKDTdKWd30iQ0kLv2eF31hBwkladnNrT5nuBXOKidRnmAFhuWOkfdVlPJOVGJzioQU+sVtGb+Q3SOa1rS5xOAAuT4IMJGyQY6p8la5TJc252tcNu4W+ZC7xkbR5YAyuDT6rQHHxOz4rQNL+brKSZmpfVngccbdqJw1jhyexFc7jaN1x5OHuWXyZVyxuDmOvqkEFpsQRiCFg2K9p5ER6izPy82upY5xg49WQWtqyNwcO7YRyIWaXJdBeUrmqpydoZM0c8WPP/qXWlGhERAREQEREBERAREQEREBERAREQEREFOonbGxz3uDWMaXOJ2BrRck8gAvMecuX31c8lQ/tSHqj1GDsRjuHvJO9da0z5e6KnZSMdaSpN38oWnG53aztVvMBwXCKx93EhEqWR91UhiVKCx24d62PN7IU1XII4WFxO0+i0es524Koq5t5ElqZWxRM1nHyA3ucdwXfc1824qKMNbZ0pHXfbE8hwamaebcVDCI2WMjrGR9sXu/Jo3D8yVm1FFy/TxBenpn7xLJH7cTnf2wuoLnum2K9DEfVq2Hzimb/UivPICqxuUjWqcNVZb/AKG63UynE399FLH/AC9L/aXoReYNHcuplOid/HDfba5n9S9PqLBERFEREBERAREQEREBERAREQEREBQJUVp+lTLX0agkDTaWoPQMte41wS9wI2EMD7HjZBxfPbLv0yqnqAbxuPRxcOhZcMtydcv75CtSN/8A781eVz9jeCt4m3KrKvAOR8ifgvQ2inIIpqJsjhaWptI7CxDLfVt8jfveVxzMXIX0ysihIvHfXk/424uHjg38QXpYC2A2BRYiiIii0LTQf2BvOpZ/4SH8lvq51pwf+xwt41N/KCb5hBwlsSj0SvWxKYwqsquafVrqI/7yn98zAvUy8xZswXrqP/vKf3TMK9OqLBERFEREBERAREQEREBERAREQEREBcO0x5X6WuEIP1dJHY4/9WSz3eQEX8y7XWVLYo3yvNmRsc9x4NaC4nyBXlnKtc+Uyzv/ANSeR8jhe9i9xdqg8Bew5AIlYmZ9yVXgYreIXKyVFTuke2Ngu97msaOLnEADzIVR2bQnkXUgkqnDrTO1Gf8AGw4kd7rj8AXS1Z5Hye2ngigZ2Yo2sHOwxceZxPirxRoREQFy7TjP1aSP1nSv9no2/wBZXUVxfTHV61dHHuigb7TnPJHl0aFaPHGpzEq0TVO5qrK6zNg1soUg/wBww+ydb8l6KXCNHMGtlKm+yZHeUT7e8hd3UWCIiKIiICIiAiIgIiICIiAiIgIiINH0w5T6HJzowevVSNhH3Td8g7i1jm/iXn7KbtjeC6jpqyjr1kFOL6tPCZHcNeV2A7wI2+2uTVj7vRFSlbvW/wCiDJPTV7HkdSnY6U8NbssHm7W/AtGjbgF3DQjkzUpJZyMZ5dUH7EQsP5jJ5Kjo6IiiiIhKAvO2d1d9Ir6mTd0pa37rLRgjkQxp8V2/OzLbaWknmDm67WEMxB+sd1WYcLkE8gV50pWu2g377g+Lh4bkSspC1TyBU4pbdoOHhcebb28bKd7wRcEEcQQfgqjatEkOtXuduZTvPiXxtHxcuyrl2heDr1cnARMHnIXf0rqKjUEREBERAREQEREBERAREQEREBEWIzvyn9FoqmcHrRwvLMbfWEasY8XFo8UHn/OrKP0isrKjc+dzW4+hH9Wwjvaxp8VqDYRI83Fx+v8ACy76dwiABsLC2wYd52+Cx1Mwg8T5/JVlMyjEbmlpIFzrC+BFib+4L1LmdQfR6GmiIs5sLC777hrP97ivN1DTa0jC8hrLgOxJ6pc3WNgOAK9GjO+g6F030mPo2C5xIdyAjI1iTsAAxUWM6tQzm0iUVISxp6ecYFkZFmng+TY3uFyOC51nlpDnq9aOIugpdlgbSyD7bhsB9UeJK0noSR6rdw3/AOENbblzSpXykiNzYG8I2gu8Xuub8xqrTq3LNZKbvlkcftyPd8SVB7Q3v9/f3c1bPrAOzi7juHdxP6xVRXdM8DUe67nYkeqOHefh3rM5LpC5hdcC18Dwa3WJG84cAbWxsMVrlKCTffdbHQggEAkAixxIuOB4rPKXOulmesmaZ7cC3EEg2IdYgXIdqk6pwOB4HgVY1bGnEgX47/PasnFXSDEEawOtewvrWI1yR2jYuHWv2ncVaZSqgWv6gBLhq4dhobq6ocTc7GWvwJ2lZl5+xrOPldM0MU+rRyu9epda5JNmsjba55h3mt/XP9C1YH0UkfpRVDwe5zWuB7sXD8JXQFtBERAREQEREBERAREQEREBERBRrKpkTHSSODI2Auc5xsABvK4hpD0hmrBgiYG0usD1gC+QtN2uIPZAIBA24AngKukvOw1croo3fskDiBY4SyNwMh4tGIbu2uxuLcwmkL3eKIqPmfIbklXMUdlCKMAKxrMoWOq3E7FUZMOVZo2bzuCtqKItA1sXn9WCyEYDQSfE/kEEWRAdZ20Y33AfrerStrrYDDwxPcDsHM+W9S11UfkOHM8Xe4d+KxEj7lBGWYu7vHzO8nmVBgUCA3tGxOxoF3Hw3eKqxyH0WBvN3Wd5bAoq/oYlnaYLXY2SO2yO8LN+CuoqA/vJPbcVUbIFZ1uxY0NqGYtkDxwcLeAI/O6njyiH9RwLJOB3/dO/9YIM1mBnR/8An1Rc65p5gGTAbQAbtkA3lt3YcHO32XoaKVrmhzSHNcA5pBuCCLgg7wvKcwxXadDGXTLTvpXm7qcgsvvieT1fwkHwc0blFjoyIiKIiICIiAiIgIiICIiAua6Vc8jEDQ07rTSC0zwcWMI7DTucQRc7geJuN0zqy02jpZag2JY3qA+lI46rG9xJF+AuV5xgnfNO+SRxc9ziXOO9x6xPm4+SJVLK7gxgaOCxVCy5urzOB+Ko5PGCqKeU5yBqjaVb5MpRra53bO/ioTdZxPE2CyFOLWHmgvYeP6AUk8+F/ZH9R58OA5nCEzwA2+xzvMAE29w8ARvVjPKXG6CjK8kqgwk9jBu99sTyYPzUzGdJ/wAQPtkf0qtIUVSjYG7Bt2nee871cMUkMLnbBhxWQho2jaSe7BETUrVkfrGgGMRucPRkDi0i32SCD4qjEGD0VdxVLd7fJSzellUDXO7MlKWONgHRSl0d7jtMku8YXx1z3K1rYQ7Aj5g8QdxWZdZw6pvy3rEVJxU4zC1ZteTdru20Xv67PW7xsPhxW66JKwx5RiG6VkkZ9gvHvjC0ybZrjazrd7fSb4i/jZbJo/wyhS2/fDysfyK0PRiIiiiIiAiIgIiICIiAiIg5JpyyoS6mpAcADO8czdkf933LmORz2jxc4+biVsulSr18q1A3RdFGO4RMeffI5ahkyW2HOyrKnl3tKFAeqo5ZxxVLJb9yC3i2q+p/8lWVrEjnZVXy2HegnrZg7Dd5eIKsnRlzg0uda13bNm4XA3qYHaTsAuVLE47TtJufl4bFFXrnADgAFGCn1us7ZuHzVKlj1jjsCyQVRFotgpwVIogoKoKmBVIFTAoKzXkbFCr64v6Q28wqd1FrkFGnWz6KaYvyhTD92HPd+GJwv5lq1lmDiOfxXStBeTryVNSRgxjYWn7TrPePACP2kV2BERRRERAREQEREBERAREQebNJJtlStH8VnvhiI+IWpMks533ifa635rf9NNCY8pOfbqzwxyX4uaDER3gRt8wueT4EHjgfiPz9yqK9XJrNVpQS2dZTlWUl2m6gylU2zu/FW7lV6bXaDvGBUjWoKco6oHrO9wxUQ1Tvb1m8mn3kKoGoLylZZoVdU49gU4KqJkUFFBEKKgiCa6jdSogpyvs78PzXovR9kM0dDDE4WlcDLLxEj8S0/dGq38K5JovzbNZWiV4/Z6Ute7g54N2M54jWPJtjtXflFgiIiiIiAiIgIiICIiAiIg5rpyyIZaSOqaLvpXnWsLnopdVrj4OEZ5AOXCpI9YEcf1deuqqnZIx8b2h0cjXMe07HNcLFp5EErzNnfm0/J9U+B1yztQvPpxE4G+9w7J5i+whErWocbg9oYH5jkpJqe6upoCes3B48iPVKjC8OHAjaDtB5qoxUV2Osdhw/ysiwYKeSnB3JGy2CKpuHWH3SPeFUAUZG7DwN/mp7IirEcFUVFhsqoQTAqKlUI3E7QgqKKlUUEVUp4HyPZHG0ukkcGMaN7nGwHIc9wxVPhvJIAABJJJsAANpOyy7PowzGNNarqW2qnNIjYbfUsO0n+Idh4DDeblbXmjm+ygpmU7MXDrSOt25Xdp/duA3AAblmURRRERAREQEREBERAREQEREBYHPLNeLKEBif1ZG3dFIBcxv7t7TsLd44EAjPIg8uZayNPSTOgnZqyN8Wubuex3pNPHwNiCFjZaYOxuQ4bHDb3HiOS9Q5wZAp62Pop2awGLXDB7D6zHbj7jvuFx/OfRbVwHXpz08YvazR0gHB0fpd7ceQVTHPhIW4SNw9ZoJHi3aPeq7IQ8XY4O7iCq7YpGuLZI9QtsDidu8apxbu2qoaGN2JYL8dh8xiiLAxEYFSNbbDdu+Sy8dC0Da7xe51u7WKmbkeV7XPbE98be05rHua37zgLBBiujUdQq5ZC4dkgjgfyKqN5scPDW+CCyuogrIazeDvYf8AJZXJWbVVUkdDSPcD6bmtjj9t2Hkg1u6ymQs36qsf0cERcR2nHqsYDve7d3bTuBXTs39FYFn1cgP8KG7W9zpTZx/CG95XRKGiihYI4mNjjbsa0ADvw381Fxq2Zuj6nobSv+uqv3jh1WG2IiZ6P3jc4nEA2W4oiKIiICIiAiIgIiICIiAiIgIiICIiAiIgxeXsnwyxuMkUby0YF8bHEdxIwXD8qRNEjgGgDgAAoIiVtOj2ghkkAkijePtsY74hdajjDQGtADRgAAAAOAAREIw+XskUz2Oe+nhc/wBZ0UbneZF1ozcl0/SW6GK19nRst8ERBvWRMj0zGhzKeFr+LYowfMBZlERRERAREQEREBERAREQEREH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIWFRUVGBgaGBcYFxUZFRYYFxgYGxcVGBcYHSggGBolGxgWIjEhJykrLi4uGR8zODMtNygtLisBCgoKDg0NDw0PGC0ZFh03KysrKzcuKystKysrKysrKysrKysrKzcrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIAR0AsQMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAwQFBgcCAQj/xABGEAABAwIDBAcECAMHAwUBAAABAAIDBBESITEFQVFhBhMicYGRoTJSsfAHI0JicpLB0RSC4SQzNHOissIVo/FEU3ST4kP/xAAWAQEBAQAAAAAAAAAAAAAAAAAAAQL/xAAVEQEBAAAAAAAAAAAAAAAAAAAAEf/aAAwDAQACEQMRAD8A3FCEIBCEIBCEIBCEIBC5e8AXKia/aW4eQ1KB9NWNblqeA/U6JlLXv4hvdmfM/sot8r3b8I4DXxJ0XjYW6nM87n4oHrqq+XWkdzrfBNJo57XiqX9zsLh6heOjHAeQXmAA+73Zf0QRzulVZA7DLGx/gWE/zC49FI0fTuB2UrXxHjbE3zbn6LyohbK0seM9x5/oVXHbEc7HgBd1bsLrNJINg6xAF72c035oNEodqQzD6qVj+QcL+I1CeLGqjZxac2lpHIgju3hSmy+kdVTkXcZme5ISTbk/2h43HJBqKFG7G2zHUsxRmxHtNPtNPMfropJAIQhAIQhAIQhAIQhAIQhALmR4AuV6SoHateScDf8AwPePPkg82jtEk4W6+g7+JTJotnqTqTa53pIZfOZPf+q9e/LVAoHBdY7c7/Pz3Jk6bn8/JSZqM/nwQPesz+fnghs1/wCiYNqfn5+dV51/9fn53oJHIix0OvFO9mPtO0n/ANRFZ3+dTnCT3uY6/dGoL+II+TdP4Ki8WMWxQSslH4SMEoA49WZPNBZaiEOFiLjgcx6qAr9jRG9mYfw5emisD6pmheAeB7J8ikp48kFLZSyU0gkiIJGrTliG9p3G/huV+pagSNa9ujhfmOR5jRV+sg5J30cmsHR8O0O46+vxQTaEIQCEIQCEIQCEIQCEJKolwi/zdAw2xW4G2GvxO4KBHHUk3J493nkvKibrHlxzAuBz4u/Qf1ScklvniEHr5LafN/8Aym01R355/PmkZpb56/P7FMTLvQOnSklJvnAum7XlxDWguccgBckq6bA6OCK0ktnSagatZ3cTzQRGzdgzS5uHVs4m+Ijk397KxUnR+FmrS88XG/oMlLIQIx0sbdGNHc0LiogbvaLG7TkNHDROUnUDsnlmO8ZoI7ZkzzCA5mIsxMd2gSTG4svnxAxa716+JgzwFh4txN8yzLzXVEbTTt49XKO57cHxiJ8SnEqCMljJ0eHDmAfVtvUFMqaUxytcW5E2JBuLHLPQ5Gx03KSqGA6j9/NRdSzWx5Z5+uvqgtgQmuzJy+Jjjrax7xkfUJ0gEIQgEIQgEIQgFBdIqvIMBzdl3e87wHxU1K+wJ4KlVVTjc5/HJvdx8Sg4c62Q3aW5WsE2klvquZpd101fMgJnfP7Jm6S5yFyTYAZk3OQ58FzUT7h88rK1dCNjXtUyD/KB4aF/xA8+CCT6L7B6luN/964abmD3Rz4lWFCEAhCEAvCvUIIknDPH96KRp743MLfQv9UvK9IbTNnwnhMR+eGQfEhIyTIOpXqNqnJaWZMZ5kEz0Zmu17fdN/B39QfNTaqHRqotUYdz2uHiLEel1b0AhCEAhCEAhCEEJ0mq7NETT25DbmG73dyqtRKL5aDIeCtfSBjHNOJoOAZG5Dg4jc4Zty554lmdVXuYcPtjicnebRY/l8UEi6Q8P2+c02mk/X4pON5eLtjeR90B5/Kwl/m0JhW1Ib7ZDPx9g/6rIJfYOzjU1DY/se1IeDQdL7ich4krWI2BoAAAAyAGgA0Cq/0e7OEdMJbguns+4IIwfYAI3Wz73FWpAIQhAIQhAIQhBD9ITaPEN0lOe4dc1rj+UlQr6nmprpSbU0p4MB/K4FUqSpz+fNBJTVXNMpKn580xlqkzkquaCY2XV2qYT98D892/8lpQWJurMLg7TC5rvym/6La2m+aD1CEIBCEIBeEr1N6xoc3Cb9ogZEg58CCCDa+iCv8AScyYRb2SCTmMiTvB1AAGnNURlKZJLc1ZemT3Rts2d5GlnRiW3i3C+3Mkph0fgmBBMLJAQDdkmF2diOxIAND76CXp9jgMtYXVK6SbPdLU09Exzx10gD8LnACMXdITY+4HWWkmvDR24pmZb43OHi6LG31Va6Dw/wARtKqqtWQgRs3DG8XebEXyZhH8xQaHTwtY1rGgNa0BrQNAALADwSi8AXqAQhCAQhCAQhCCH6VD+y1H+RL6Nus2dJl8+I5LS+lX+Eqf/jzf7CsvDUCcshTSV5T17Eg+JBE1T8j4/N/Fb1smbHBE/wB6NjvNoKwyppb3W0dEnE0VNfXqYwe8MAQSyEIQCEIQCb1HPQAn9viU4UfWyWa8+H6/r6IM86SVB62wcRyvceRuAp7ozE7De48v1BVS2jLin8Ve9hstGO5An0kI/h5A8Ow2zwSOY7Lg5uEjzXP0aRE0pnIINTK+Wx3NyjZp92MHxUN9JtaY6RzW5uf2Wi9rl2QHmrxsOgEFPDCNIo2M/K0AlA+QhCAQhCAQhCAQhCCH6WH+yVP+RKPNtlnbI8loPS//AAk44st+ZwCpTIUDIxLkw8lI9SgwIIaan5LT+h/+Cp/8tqoppuSv3RhtqWEcG/qUEohCEAhCEHhKhdty4YSeJJ9T+llMTGwKrHS6TDCOTf0QZ3SvxTnvWmbOFmDuWVbBdeW/P9VqdI+zRyCCn9LPr9o0NNqDO1x7ogZDf8i1RZZ0cBn2652rYIHnuc9zWt8bY1qaAQhCAQheONkHqFEV3SSniyMmI8GjF66eqrW0vpGDLiOlc4j33hvwDkF8Qsjq/paqGNEgooy3feZwI4X7C5oPpsBv11E4YdeqlDjbjZ7W/FBoPTD/AAzwN7oR/wB1pI8gVWo4lJT7bjraSCeIPDJZMg8AO+rbJe4uftNSbYUDURL3qk+bCujCgjjDkrfsIf2eL8IUA+LJWTZjLQxj7jfggdIQhAIQhAhW+weapf0iVFmEcrfPmrlV/ZHFwWb/AEl1HtD50QVbo2e1fmtJbPaMnksv2C+xCutbW2pnHkg4+iIY6raE33oo/wAoe4/7gtPWcfQcz+yVL/fqnnyZG39CtHQCEKM2ttDALN14/ogV2htJsfN3Dh3lVja1dI/V2RzAHs2/XxXda8WDh7LvQ77qOijdIHMAsBftkGwcDoPeyOg4ZkIGG1WtLCcsvRw0UJtGGSRrHtZY6OvkDYe1nqDxF1Y6qpiguATI/fpe44nRvx71U9t7WmfezsA4N18XHPysggtoQOjbI1zhZ/hY3uDnbS5UFQ7FqJnhlPG+RziG6dnPK5doANSU+ljzJOZ4k3Pqrd0BnLJAWjM5WGp5AcSFoaDSbG/hoqelYcTYIhcEkdo2BcCAdS15tb7XOydtFtWPHhi9GXPmE6hYcy62Jxu7gDawA5AADnYnel2tWQzY5hNg5t+FwHflOfolzBy805LQRYgEcDmPIpMUMe5uH8DnM9GEA+KBs+FTsLbNA4AfBRZpDulf3EMcPVt/VSwQeoQhAIQhA1qj2meJ8gsn+kiW7iOJP6rVax1ngk2Aa48tCsi6ZxddIS17bAnMknysggtnPtZTG2qu1KVEMwssC6/cP6r3alSJYTG29919D4oNG+g6O2y2u9+WZ3/cLf8Air+qJ9ElXFHs+CnMrOub1hdHiGMF0r3abx2leJH2F0CNbUYQQNbKsyVOPsuOe4/v+6W2vO4nE3UbuI3pnSQtmAlcDhBOXvEGxHMXy56cQg4p6VxxGTKM2yublwPtDg0i3M38TzXPcRhHZbawtqRwy0HIKb/hic3a8OH/AOv/AB3tpqVBS6qnsoDacIzJy71fJdmukfgYLneT7Lb73H9NTfhmmG2Nq7O2TYzO66qtdrGgOkHAhukQ17RN+ZQVLZ3QurqLHB1LD9uW4y4tj9p3oOa0LYuwqfZ7MReA4jtTSuawkbw25sxuWg1sLkrLtofSDtSucW0wFLGd7fbt96Zwvf8ACAltjfRsKl3WVVTLK464TfzkfclBpzul+zxrX0vhMw+oKkNn7bppsoamCXkyWNx8gbqnxfRFs+391ITxMsn6KI2z9C8ZGKndI07gXNcL/wAwB9UGtB/HJdtK+f2bb2vseQMkc6WIZYJg5zCPuud2mHuJHIrWuhXTWn2iy8RLJWjtwuIxt+80/bZzHjZBa49QnaZwHMJ4gEIQgEISczsu9BSem20bu6vOw15nms9rJiSrf0lbd5VQrGWQMWC5UlBTt4JhRtu6ylJnsZqQO8oPTs+Nwzt88FfujtLJFSWfK9xecTQ5xdgZlhaL6A2vbmqH0ee2pqWwg9n2nngxubjyvpfiQtE2rMR22jT7O4jcBwKBGIGV/Vm7bZuI3C9rX4nTz4Kdp4RkbWAyYNwGmLy05d6RoKewsRme0/jno39PAqUaEDcwptNdxLGnT2ne7yF8i63lfO+hcVsxuI2GziMz7jTv/EbEDuJ0FjkvTrpNLVy/9J2YcsxUSgm1h7TA73RniOribcbgdM/pHdiNDskYnZh87Rex39WTqeMhvyvqqtsPoJLNIcTTNKTieXE4G31dI867+Z4LQNg9DKehh7RtYDrJLXe4nRrQASXE5NYLk3FrqRrKMvjwub1MAueouBiv9qocPaP3L4RfPEdAr9BRUsFgwfxkg1eTgo4yNQCATKdfZDhlnhVipZy8ASzuA06uI9RH3NwHrD3Yz3JtT7KLzdxLGZZDJ5G7UdgevcpilpmRizGgc/tHvccz4lB2KCjcO1TNkPF8eM+c2ZXE2yYbfVROiO4xOMJHcYXhLhyUY9BWdrbQqIWllREKyndk6OZrRJY/+3JYNeeThf7yo+1eibWj/qmxJXEQuvJBn10BHtDCe0W2vdhvcE2JC2dr7jCQCDqCAQRwIOqqu2ujklNJ/H7NFpWj6ynzwTRjMs/beN3BBMfR90qZtGmbM0BsjezKz3HgbvunUHh3K3hYxBNHRVtPtSluKDaJEVQy1uomJPtAeyQ+9+BD+IWyRHJB2hCEHjioWm2kJXucD9W0ANPHEAcXjcAI6WzkRNiBzqJYof5ZHjrbc+rxqE2JPiklvo2Yu/0Nwj8x9EDLpPF21T6+JaD0hpsrqm10WSCu0bsMhuQMjmdBzKq+0Olri89V2GjR1m43cCXG5HcLAKzVsQvY6OBB7nCx9Cs1niLC5rtWEg97cj8FRtn0MxSOhnrZnFxkd1MZNrhjLGQ31zcWjP3Fe6UHrDf2GDEDz3N5jUj8NtNIfovs4UmzqWJwt9U10nJ8nbeSd2breCnaJtmgE3uS6/Ldnv3KCTgNu/U9/wA5eCXqJ8DMVrnQD3nHQcu/cLlNIBmme19pxxNknlNoqZrieZaO0RzvZg54uKCn/Sb0pfSxNpKc4q2r3t9pjXdkvHAkjC3gGk/ZT7oT0Xi2XS3cW9a5uKWQjJoA/wBrdAN571Vvo0o3VtVPtirH2iIgcw0DLsj7oswePFaNRQGpmLnW6qF2mofMzRvNkXrJc5FmYFPSn/EzgtDc443axNORkcN87gc/dBwjV2JkZetdicLWzZGdW/ecN7/Qbt5LraVd1r7A/VtOX3j73drbxK8jjuLEA8jmPVAmF0CnH8M3dceOXkbgLl9OdxB8x+6BC67a5JuBGrXeFj6A39Fx1zRq7D+K7f8AdZA/jcncL1HQPB0IPcR+iexNPAoK5tvo6xzp6awFPtFriBuirGNxB7eGNrcXfEfeU70D2k6eigkkykDerkB1EkRMbwf5mlL10LnROABxNwvZ+OMhzR4kWPIlM+irOrlrYxkz+J61n4Z4o5Cf/sL0FoQi6EFL6Y1N6uiG6OqiB75Iqj9erUdstxZXVDCcnBrmj/LfIHnydF6Jt00nOGqlb7VPLFMO6lfG5wH8jXrnplOIJmVjc2AEk7jHIzA434A9W/wQWqUdZHf3sx3bv3VSr4LXCtdO6xw7mADv3D4FRm1qbegodfSqmbU2L1lXAPszyxRuy+0XNaT4tPoVpG0IFHbIpv7bS3Fx1zD+U3v6INMrXZkNta9regC5c8NcGjINAAG4ADIDwSr+08XGYOo1yzz5KJNR9Y/8RHll+iCdNRhYXDXID8TjZvhci/K6y/6YNoOcKbZkJ7c7mvk44QbRh3e4OefwBaFE7E5jeHaPebtae62P0WU9G5RXbaqax393DfBvGFvYjt/K0ut95BodNTfw9PDSwWDrNYzeMZBOMjeGND5CN9hxUxtWRtPCymiyu22uYYNXE73ON89/aKadHmY55ZnGwiHVt4B7w18x5gN6pg4YXhRslUZZHSn7R7I4NGTR5Z+JQPYBon0KhtmdZ9Y6QgYpHdWwWOCNtmtu4audYvPDEBuUvAUDtpQ5dMCHhBSNv7Zqn1ppaZ4gZE3HJKWteSBbJocCBmSM+GmYTxu25I3U4c9somlERIbhdd3suABtldruYzG5SlXsWB8rpyzDK5mBz2kjE3K2IaEiws61xa17JCPYsTZWzHG98YcGYzcML8nvAtm8jLESbDIWQSbMLsyA7vAOhtvSrKdn/ts/K39kjELZJw1yBZkLPcZ+UfskNmMw1MvDqqcflfO34AeS7dIBqQO9d0TfrnniIx5PmP8AyQTiF4hBnldZtZUNcLgvNxxa9gJHiHFMtm0/W0L6WTtvpC6F18y+IN+qd/NCWHvae5SfTmDq6lko0lZY/ijPxLXD8qjYKoRStqL2Y4Nim/Df6mU/gcS0n3XBB50JrJHMlhldilgkay5ObogwdU/x7WfEFWaQhwzVM6QUppamOrYDaO4kY37cJFnt5ll8Q7lOwbSjlhZLE8OZI4ta4bzjLbeYQNNpUttVG7LYBUwnL+8aPM2VlrogRbhkN5/qf2UFUwdU4O+00ggcMJ09PiguDDd4JGYv35qp0tR2j3u+JVpe7ti9t9u7kVR8dpZBYgddK0cDhechx1Hmgm9qbQMFFV1F82xPw56Ow4GW/nPqqR9FkLYaJ8ztHOc5x+5EM/Rp81M9MpxNsx8ETgZHujba/B/WOv8AkXGy6DqqSKnte5ijPMPkaJP9GMoLW95hoGsOUko7f45iZJvi8eSZUyU25NjewbgHO8XuI+DPVJ06CSiCfUyYQuT6B1kEg0Lx4RCb5XF9bXFyONtV08WQNZEi5LylNnlB6ClGOTYuXYcgKtxxC19G5i+8vGobzH2h3DUyGzqJ5k63HaPcwNzJ0u53AZ2AHO+5RUjRfFa53ZNvkbjMi+t9+9Wyljwsa3gAPRApZC9QggumWzTPTODRd7LPZ3t1Hi248lQNnTNcLOF2OBDhuLSLEeq1wrNekOyDTTueBhgeS4OOTWE5uaTu3kcu4oGWwtpNm6+hkd9fSOw3Or4h/dyjjkQ0/wApPtKCEklDPDDpSPqo3nhC8vGLX/8Am7Ijx4qAjqHv2kKuMujJJLbtP1jMOFtwbdktAvfitFrqZlXCbtFyLOYfMsJ4bwf6oJdszSHPY4ODcrg3F+GXePNRcsVonSO9uXQn7LNwHI6+PJUigrpaD+xm5hqKhn1zsywOwtka7PJ4AyJWhUtTFUYpIjijY4sadxLbX14ZDvB4IHWzZHGKMnUANdckEWyvpmbWNstUp0ZpGPfWRSMa4NqS4BwBylhicCOGZd5Jls+c43jQG1idMfu68P0Ulsd+CuIOlRA0jhjp3YXDvLJWflQVfbnR2OFxfTRRxsbfG1jQ3TLFYZEC/qSm1PJnBzlcT3NgmPxAU90uLKd5qHMLjGbHM2EbsRIA0Fw4g94UBI3A+JoNwJZADxaYJ8LvEAeaCTqc3kcGsH+hp+JK6iXNWbTSDn6ACy6gCB6xtwQHFpINnAAkHjYix8UpEKhujoZPxNdG7zaXN9B4LiIp9EUEI/Z07nY5Y+tkJsLiN8QHg+437rcc17BK5nZ6ySNoNybvaXEDJrGm3Ei2h1OgVijShcUFfj2jJYnrQRnYO6u4GWZyBOXgdbbiOrpdOySdLtdw1Nnbj4nLnaZmjacy1p72i6aPgZuY3yQJNe/fYHm14+Lkq1x3+gI+JK4DANAB3IJQPtmxY5GjcO0fD+tlaQofo7B2S8/ayHcP3N/JTCAQhCATTalC2aN0btHDXgdQ7wNinaEGQVOzyyQskb2mmx/Qi+46p7HWRRYDJM2NzgbA37TAfacR7IvvOnorp0k2KJgHtHbb/qHAqp04EchLx7QbGSRoWl1muJ0DseW64I1sgT27sZszSC0G4sQdHDgeB4Hu3WVJ/wCtVWzIH08cYfCScDnXD4XPNyHkbrk5q+hhgGQL4Bq0Al8P4WjN8f3dW/Z908bV2ayZmIEEOGTxZzXNOl9zm80C1Q0MgiwEEkNw4DfE45kg55l1z5peqkcGMlABlpniRwbezhhwzNaN+JheQN5YOCziCil2fUtnjYZWtDh1DnnDZ2roicgbZWtobKzdFekoq5Jpc4THZrYnuAe7e67RqNLeJ3ILl0tpG1EHZIImaAHbs7FjstQTh8LqmUTDaAPN3NMcbrZ9tn9lf4YiTfgrFs2qDGmnNxG7OG+RZe7jCeGGzi3i3T2SovakNi/MjEesB3tLgGS27ndXJ3vdwKBSs/vn8xGfONh+N11EvNpS4jFKBYPaWke69hzbfliDf5VyxyB7G5O4nJjGU6jKB7G9KY01a5el6BVz0kSuS5Jl6BRxXMERkeGDfqeA3ny/RN5p7Kz9H9nGNpc8dt9rj3Rub38f6IJSKMNAaBYAADuC7QhAIQhAIQhAKI2vsVsoJFg61jkLOB+y4bx88CJdCDPyJKc4SHOYOF3PZbdxkZuv7QyuDe4T6P4jLMWsLIXujMTXCxc8kiYhmrWOGHI2PZLrDU3mtomyDMC6gqqDqzpZ243+BKCO27sgC4IyO46d7Tu8Vn23eirHkOt2m5tOj224HR3cVoVRt0tGGQYm8VXq6tYc43D8JzHhvHggp2ztoT00rnVIlq2ubguHlr42ggtIjybcOANxmrBQdI21ERDHXLTmJGhsrBmCyRv2WOBIxjIHhcgN6ivhdlIMB4kFzfzAXHiPFIHZEclnxuBto9jrkdzmm7fNBO0s2Nha0gh1nMOXtg4Ry7Yuy3vga4kpTzXUNSQuY69wSTncWvfI4rZG4yJ1O8lPH1GZcO94J7QJ1dzBO8d+/IJuKROWSKGhqLp2yZBKNeui9R7ahemoCB2ZU2mqAM7ps2cvcGMaXuOjQLn+g5q1bC6NYCJJ7OfqG6tYf+TvQeqDno5sYkiaUWOrGnUffdz4Dd36WdCEAhCEAhCEAhCEAhCEAkaqna9pa4XB+fApZCDM+l+x5IQXNuY+e7li087LN6yqN+HovpNzQciqttr6PaCoJcYerd70TjH4lo7J8QUGBzTk71HSktOIOLSN4NiPFbLL9C8N+zWzgcHNicfNrWpxs76G6NhvLNPMeBLGM8mtufNWjGKHaVa8hkM87i44WNu55kd7rAb3yzJ0FlvHQ3oQY6a1c4zzyZuuezENzIyLWPFwzPdZWTY/RylpR9TC1htbFq+3DEcwOWilQFBQaz6OiDemqSwe5I3G3uBBBb6pieiO0G7oHd0jx6Fi0xCDNouileTm2FvMyOP+1il6PoNvnqHO+7GMA7i43PlZXJCBps7ZsUDcMUYYN9tTzc45uPenaEIBCEIBCEIBCEIP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxATERUSEhMVFRUXFxgaFxgXFxUZGBoWFRgYGBgbGBgYHSggGBolGxYVITEhJSorLi4uGB8zODMuNygtLisBCgoKDg0OGA8QFysdHR0tLS0tLSsvKy0rLSstLS4rKy0rLS0tLS0tLS0rLS0tLSstLSsrKzcrKzctLi0rLzM3M//AABEIAN0A5AMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAQQGBwIDBQj/xABLEAABAwEEBgcDCgQDBgcBAAABAAIDEQQSITEFBkFRYXEHIjKBkaHwE0KxFCNSYnKCssHR4SQzksJDovEVJTRjo9JEU2RzdLPDF//EABkBAQEBAQEBAAAAAAAAAAAAAAABAgMEBf/EACURAQACAQMDAwUAAAAAAAAAAAABEQIDISIxYaESI0EEE1Hh8f/aAAwDAQACEQMRAD8AulCEIFQkQgVCRKgEIQgEqRCBULXJK1oq4gJo/STfdBKB+hQvTevsMBLQb7xm1lCAfrOOA5YngofpDpMthxaY4m/1H+p2B8EFyIVC/wD9KtoP/GDwgp+FdjRnSlah2/YzDbhdd4sNB/SguJCiugdfLHaCGuJhkPuvIuk/Vfl40KlKBUJEIFSIQgEIQgEIQgEJEIBKkQgRKkQgVCEIBCEIFQkQgVc22aTF72cdC7aSeq2mfemesWlyz5mM9d1K8AchXYT5BRy12m5800mvvnq57hdcQRmqOvaLU0km8aAVc5x3ZngFXmtuuhcHMicWRDAvxDn8tobwzO3ctWuGn+qYWuoxv8w7zsbyHmcNir6Ozz2ueOKNpc97rrGfEnkASTuB3IHURtlpN2ywSvFQ2scbnGppQFwF1mYz8VZcnQ6RYgWy1t1KvJdWNxOPswTi2mQftNaihF2baraEdYrIyAVo2pJ3ucauNBvNeWA2Lom03cSThzWPUtPK+lLHLFI6OVjmPYaOa4UIPH9doIKZBp2Zr1DaNH6P0ifayWeKYtqy89mPV2V2gV8ymkvR7og/+CiH2XSt/C8J6hQtgNvawSewnkiOTvZSFpH1XhtD5qyNQ+kUx0jkLnwjAtP8yLkDiW/V8NxtZhLAGtAa1oAa1tAA0CgAAyACrfpn1lhZZmwNLH2lz2uGTnRsaaucSOze7NDmC7ckZFLVs1oZIxr2ODmuFWuGIIK2qk+izXkMIikNInmjgT/KefeH1Dt8dhrdi0gQhCAQkQgVIhCAQhCAQkQgEIQgEIQgVCRCBU10nbBDE6Q7BgN7jkPFOVD9drdV7YRk0Xj9p2XgPxIOfZpHBslqfiakNJJFXuzIwxpuBG3kY3pW3mNhdWrjgK/SO0+ZXc0w5jQyNt03W9YtdeBcCW7hTImg+ltzUM0pHLPOIYWGR4ButFKl1LxzwyA8CqiIaUmLnXcwM+LldnRXqT8jj+Uzt/iZG4A/4UZxu/bOBduwGwk8ro96NZIpW2q3Boc03o4qh1H5h8hFW4HEAE40OyitRRWq0DDvXK0kykTzuY74FdafJc/SArFJ9h34Sg4PRc6tkJ3ySHzapTpGwsnifC+t17S00NCAdoIyIzB3hRXos/4P77/7VM0HljXLV6ex2l8E9X0xY81Iew9lwr4EbCCFHgAMF6p1y1Ug0hD7OXqvbUxyAAuYTnzaaCrdtBkQCPP2u+ps2jnhszmua4VY9l6hFaYgjA1pUfWGKCNWG1OhkDxlk4bxtXpToy1gFpswjc6r4gKH6UR7B5jsn7u9eZJKFWF0Yac+TTxOr1ey/wCw40f3A0d3IPRSEIQCEIQCEiECpEIQCEIQIlSIQKhCEAhCEAqq0rbfazSSbHONPs5N8gFYWs2kBBZZZTXqtOWJxwqBtIFTQY4KnjrRFkyC0O5Qu/NWEl0HyLodEdm9paZ7SfdbQc5nE+QYR3qKaS1glc242zPjv9W9IWMwOBugmpOPdWqs3ov0NNZrNIJ4zG90taGlbjWNAOHEvSSEyQhCisJskxtY6jvsu+BT2bJNJuy7kfgiI10Wn+FP23f2qaKD9FLv4Z323f2qcIoUI6XtDNtFgLiMYnA4Z3HkNfTdm133FN1ot1kZLG+J4qx7XNdswcKGh2HFB5gOhLONjjzcfyWUMLIrrmi6Ki8MTgcCcTuK6elyxlptEQBaIp5YwCam7G8hpJ3kUPeubNNHTHFB6D1F0t8osbCa34/m312lgFDXbVpaeZKkC839HGn7RFKz56S4y0AOaXuLSxxAcCCaYgu78c16QKAQhCAQhCAQhIgEIQgEIQgEqRKgEIQggPSHa3m0QWdhNSwuoDTFxdv4RnxUYt8U8cT5TWjQf8Q5g3Rk7Kqc9LFflzP/AGGEf1yhQqU1FK+X7rUIb6wWq/M4k1utDfK9/cvR+ioy2CFpNS2KMVOZowCq83Q2B80klNhGyubRyHmuxpTXHTdmu37Q4MADWEMiuUAoAep2qbHeeag9BoVGaB6YLYxwFpaydm00DH9xb1T3t71b+r2n7NbYva2d94e804PYdzm7OeR2FRXQnyTWTI8inc3ZTN+RREV6K/5Dx9d39qnKgfRafm3j6zv7VN7XaWRsdJI4NYxpc5xyDQKklFYaQt0UEbpZntjjaKuc40A/Uk4ADEqpNZ+mggllhiFMvazA1PFsYOH3ieQUK6R9eJLfMQCW2dh+aZ5X3b3keANBtJhL5UHYtmmpJZXyyUL5HF7zQCrnZmgwCwMjH51byK5IctjXoJXoSwgXmxYl2IFcS7HLyXp6J9Wg7wCvIdhthYczsyr/AKq4ej/XSSns5Dec0BxH/mRHC8NzwcDv71RbqFhBK17Q9pq1wqDwKzUAhCECIQhAIQhAIQhAJUiVAIQmOnNIiz2eWc+40kcXZNHe4gIKy6T7ZFLaQL9z2bbl4AOe41qaA4AAmgrXGuChlnsOjnmjnvLt7nEu+KaW7SD3uc9zjUmvHHbX14ZNZLSSMReHmM8QcwfPCmyh0jsWvV+WJpks0pkbuJrUbq514FPNXdaYpP4a1tBY/qVeMjldfXZx2fDg6P0zJCQ5pvMOBB+B40yO346dZYo3gWmLsu7Y/beFFLrlq58kkvR1MTsRXEt4E7RUgd43hYaqayT2OZssTqEZg1uubta4bQfLNdDQ+lPlMBs0xBc0dVxxq2lGu44Gh3g8VE7VC6KQtIpQkcqZiu3ZjtBB2oPVuhNMxWyzNtER6rswc2uHaa7iPMUO1bX5KlehzWb2VoNleTcnoG7mzN7PK8Kt4m7uV1PURDujA4PH13rgdOus5AbYI3bnzU8Y2H8ZH2F1+j61siZLJIaMYZXOP1WtcT8FSGs+lX2m0Szv7Uj3OIrlU4N5AUHciuNK5aHFZvK1oMozinJwTZoxTmbNAMcu/oXSRiLJQcYngnjFJRkg8fZqNgp9ZH9WQb43eVHfFoQemdQdI343RV7PWbyJo4cq0P3lK1TfRBpWs0bSe00g98d74sVyIBBQhAiEIQCEIQCEJUAhCEAoH0w2wtskcQP8yTHi2MVp/UWeFNqnirHppcf4UbPnv/y9d++iCpZjj69bfPcVrJ9euXlvC3TD165+fELQR69etuYK0jVacrw5OHDf8OWB5aYLSW1acWuwPPYfW5OAacRt9es9xKY2hl11PdOXI596itcE5ikDm5sPi05jz812dYmCRrZm41AB506h7xVvcNy4EuDhXZgeX+i6uj5KxPhOyoHxHmKIGGj7U5j2vYSHNcC07iDUHxAXqXRGkW2izxTtwEjA6m4kdYdzqjuXlN+DueP6+dVeXQ1pW/ZZLOTjE4Ob9iWuXJzXH7yIjWmLU9mjZrrqX5w13FpvkjvLQqutDqkqxtY3f7qkP/qW/GQKtJCorW4pGhKVsaEGUTMQs7QcVlGNq0vKBAE6sxpe+w7zFPzTdq2g9V/Knif2QWH0Ozn5ZCPrN/A9eiF526EYS63xnY0vJ5Nid+bgvRKAQhCBEJUiAQhCBUIQgEJUIEVddM1nJhs8gHZe9p++Gn+0qxlFek2x+00e8gVMbmvHjcJ7g8nuQUNIPXrPPz4imiRvr162705e3165+fELBhINeBPhj6PftKqGBw9eqeti12htWcRl69btyfWuzZcs/XP8ubNrCD64/uimE0dWA7sD+Xlh3LfZHdlw2ih5tw/JZQM6zh9IeYxHlVLYY8HN+i/yIH7oNGkIqGvHyPpvipf0UaWMNuY0nqygxnm7Fnffa0feKjukIuoTw+GI8wE10LajHKyQZsc1w5sN4fBBNtZR/umX/wCSz8T1Wb1ZusBromcjL5Qz/wCx/wCqrN7VBg0LcwLWxb4W1QbHYN5poSnNpk/ZNAg2sWyYUjH1jXuGA+B8VjZ4S5waMyfAbT3BOS32kwY3LBo5DPyCC3OgDRxvSTH3Y6d8rqj/ACxnxV0qI9F2hvk9gYSOtL84fs0owDhdAd94qXoEQhCASJUIEQlQgVCVCBEJUIEWi32RssT4nZPY5p5OBFeeKcIQeadIWV0cjmOFHNJaRnQglpGGeNR5bqMTw5/n68d6sXpX0N7O0e3aOpKKnD3xQO/tPG8VXUnr/X8+NciVUHtA0B1L13NpFQdtAN2GXduU507oCxCxCRsbHzOEz/awv6jI4gXtvNiPs6ua1oxFesdoUCOOHrdiPW7YE1IINaCu8HHHPZ68UVqIo9p4jzwJ/wAy2Ahkjwa0Iaa0wBFRju5rVPgCdw+H709FPXH53mw+Th+qDKUAtUdsjqEKSyjDx/JRqPPvQT+346EkP/NjP/U/dV/cBVj2+zlug5mkULXx15icNKra8QoB1nocwsnOuig71rMi1ucgxe6qRoQE7skDe2/sjz4ckG+IeyiL/ffg0bm7+/8ARS7ow1WNptDA4YOxed0TSLx5uNGjmFGtH2R1olDnA0qAAM+AA3lel9Q9WxY7OLwAlkoX/VAHVYOW3iTwQSNrQAABQDAAbAEqVCBEJUiASJUIEQlQgyohLRFECIWSEGKFlRCDj606Fba7M+I9rNh3PANMdlQSO+uxectIQvY4tcCHAkEHOoND3g1B3GvGnqVVp0q6nOlabXAOs0VlaBiQPeFPMd/0iQpoPx9evW8JZ/Xr18Vqd69evFDSqNds7NPqnzw9bq7qJ27+aODD5uH6JjM6r6cR4Nx/bvTyxC/K7mG9zc/Nx8FA4tIuxlx9ZJtqDoU2q2wxUq0OD37hHH1nV50DebgutJom02t4s9lifIR2y0dVv2nnqt3YnerW1D1PZo+E3iHzyU9o8ZADJjKit0HbmTjsAFJNdEaCitLJrNMDckkkvXTQ4TOcCDvDg092KrLXTo2ttiLnhntYAcJWbjlfZmw+XFXVqzHSd323n/qFS6WJrmlrgC0ihBxBBzBUHi+SIjMELAREmgBJ3DEq4ulLVaz2V7DE8/OVPsziWAbQTmK4AZ4bVCNC6uWm13/kwle1po+gNATWgJAzwOCCOCzhmL89jRn30yTqy2J8rgXDDCjR5YfkrE0J0R2xxBewM3l5p8RePcFauqmodlsdH09rMMnuAo37Dfd5mp4jJBwOjLUE2cNtNpbSTOOM+5X33/X3D3efZshZJq+3xhxbXLPnuRd5OEJWmoqMkFEJRFFiyVpwBqs6IEokWSEGKVKhAqEqievOsr7OGWezgvtM2DGtAc7GtLrTheNHYnBoaScAg6+ntYrHY2X7TMyIbAT1jyaMSq90h06WFppDBNKPpG6wdwxKqjXR8jLS6ORzZbQSL5DnTPDj7rpXi6HbwxtOK5kGg3Ft972t4CjzXcRez8eaCz5+lue0yBsEzbMKgBjmA5/SkN6vc0KdaI1ycx4htj4XYAiaJ1WkOyJGBG0EUBG6mKoc6SkZEIorzmMOJwIaSMSGimJqcqA5bKrqxaOgcwSOeZWOAcHPeW3S2ntGljSABTEHIVoaUqQ9GWPTVllN2OeNzvoh4vf05p+vK+kdMaNDBHDZ3tmGAmhmkFTsrE8Oa/Z9EngrK6ItfLS9zbHbg/EfNSvDgagVuPccwR2XHaCNoQdfXTositDnTWRzYZTUuYR8084nCmMRJ2gEfVrUqndPaFtlkcWTx+yOzHtU2tdSjhxHFeqVWvT3ZHu0cyZn+FM0u+xICw/5jGgoKOWmWewnLn+wzVm9GeoM1ouTytdHZ9hdUOe3M3ef0uJouf0L2ezSW9rZoY5L0cl0PaHBsjC14cAcAQ1rseK9FINccLGMuMaGtAoGtAAA4AKPyTKRuyUGktSJJ7q5/PPN/wCJS1Q7VZ1Za/Wf8VMUVRnSla/46Yuxc0NZGOTA4ebiTzU66HtAGy6PDngiSc33VFDdyZXni776jOp2iHaS0paLfaI6wxvIiBLyxz2up1XYCQNLMdmQpQi7b6AQhCAUf0nYQJal1GuqTjjWuVPNSBcrT0BIa4bK19eKzl0dNKeTiaR0w+NrvYta5zRRoe5zW95AJGGNaFPZtJm419CSWgkVODa50yOR8lzhZQ57atBxGdD8Vv05bIYHsfM9sbC0glxAGFd+ZqQvmx9LqXqTOrPLp2/j3xGEzEU7OhDeYHEXTTs1rSpO3b+66ajOrWm4ZjdhlY/E9kg1Ddyky+jp36YiZuXh1sZxzmAhCFtyCRKhAqhHsidMWokgSCyfME5AODQ4iv1mnHde4qbqN646tutLWywv9naIw4MdiA5jhR0bqY0ONDsqd5Qeb9KaGNJpr7jJeAZG1pLnFxJeXn3WtaAMKklwwpUrjQyPjYWFpacTiCDTI59w7ypdaYTGwxNwkYaUkNRdrUscRgQMQAaUypmmb7W8YFjgNt0e1jP3KkjkMFRwtAuBkFagtFbzaE3RhShGNSQ0cSF0rdM6d3s29WJpo65TrPxNxmVQMTU0HacUlrtTWx1ZG1naPVaW1Io1tQQMi+v3UynoxjYgaVFDnjiLwwx6zhjwa1QKCa+zgqNhMeA43pSLz89gA3BP7FYI7r2n2glaLw6wuuAzAwNfjw2LRoqKeMEXXjbVksY8nErbaLW9rg+jqtObg1xO/rMO1BKbL0paSs8DYI3xm6KBz6PoNgrUufTZUCmWSz1VmtmmbX8ltukJwx8byWxvDWktukNMdLrm0vGhGxQTSMDb19rRR2O6lcRs5+BXZ1S0q6yWmOdhdVhqWsebzmDFzAC2nWAp3oOr0ZaDnk0hJBFaXWWaNsoMjAHGsbmtcLriKg137FbzND6wxdjSFntHCaEM84wT5rj9HWl7NadMW6ezCkc8EMgqy6Q9tGyA8b1CSMzjUq0UEK/2tp+P+ZYIJ95hmDPKQ18lBpdY5Bg+yzt5C8PEK7lU9piNTzKsDTqxrc2KWr4LQWE1F2Mk1OYpkR39yl9u1qFohfFZY5xO9pay/GWXS7AuJOVASe5NdTiepX6R+JU5UUx0Foxlms8VnZ2Y2hvM5uPe4k96fIQiBCEIBcHWO0VBjBI4g0xPHku8TTEqF6TnqXO5nv2LGc7O+hjeVmmiZJb129jTqOOJ2Hvw38Vs1g0HHbGhkzL1Oy44ub9kurhwyKzs9laCH+/sP0Rubw37/IPZ5ZT2HNptyDh44HngpjFRu9Gc3lcTSP6r6oizTe2wc8FwBa27hUipOZJ3bN5VkxnAV3BRKzW9wcWlwJBGVMAQNu1Sqyy3mgrWNdIcfqPVM3k2oQhaeYISIQCEiwcEFBa56KeLbaTPQgve5gwDsXE4nMNpjWhzChstsjZgxzK/VDpHdziar1FbIXuBAcBUEYiox2EbRwVO6T6JrYXOdHNFQkkAXmUBOW3BBXNqeXRlzr1R9KlaBzTkMvez3JppCON0wD33G3RR1K4qw7P0b2iNrhJE4uLaXmStc0O+lcLQTxFcicQolp/Um3RYGMPaOy5rh2dxDqFBp+RFjKh0RFMHllWH7RBq3mQRxXLt0kje3GBuc0mh5EYJIJp4Dccyg5AcK1Tu1sc0A4AOFcHMe3vuON08EDawWkO6h40xqSMyBxB6w796lGoWi47TbY4ZpxDSRha19Xia6bxYAaDrNA7WBvUoclEAW1qBQ72u/wBPgurZpb917aiSM1b1i2jt4IyyqDsPiguzUXRMNm05b44KeyDKgDJjnmJzmDgDUcKAbFZt5UD0ea0tsUkhnY8ulDaUpeAq4kuBOJcTXuKtrR2tEEwBaSOY/SqlrSSXlBLVYusRtqcNqljLU05OCaWiwQPJLmMJOZ2mmOYxVRyNXY7rwNzq+amF9cayWKGN15oun7Tj8SnptLd6KeXwi8N6Ym2M4rB1ubx8kKdKqKrmC27hXz+CDapNjT/S5CjjSk12M8cP1UUEHtHcBieQy8cfBdTSMznAB2B/X0Fz6BoN2Rt4/VOW6ta07tq5ZTu9elFYmFo9q09VriORWuCeR5ocFvktUvvBpG++4fiCSK2tkNGkk7rt78Klu/x0PHaNZQFhHtSRXE0LRXblXFd/RBc0XXEHiN+5RaJ5Au3gcRmSDga0PHZWlab11rLajUdamWYrWldtcM92xWJ3tx1ImYpJ0LCJ9Wg71kurxFQkQgbPtjBJ7M1Buh1dmJDaV34jDiFqtGko2kCtalww2XGvcak4D+W4LOXR0TiXFvWJqTUg9m7mMaUAw3gHNYO0VDud7x7b8S4PBJxxNJHCvLcKZ5O8fZ+b/bGW3RggA1JcG4UGJrQ1cQKEtIFMyKCqHWqPDHAgkGhxoRltd2hiKjNbP9nx0IoaGgIvOpQVo3Ps9Y4ZYrF2jYiAC0kNrd6zuqDTAY4DAYJyT2e/hr+URHJwPIE1xI6tB1sjlVN7Va4W0r1qmmFPzIvVoQKVJphVPjYI8MCCC4gguBBcamhB4nuNFiNGxAEBtAa7T72dN3DdsTksfZve/Dmz2KxvqHNjceLRvDcMMRVzRXiuXPq5opwq6GIYVypgG3jiMDQCppkpM3RsQpRtKOvDE50I34jHI4VAOwUxGi4Rk3a05nNhBG3gKjbjXMpyT2e/hELTqBohxq6CPbj1smYOJIOQOZOC1t1E0Q3ARNbXcHXuW8HgpoNGxAAUNAC2l51LrqXgccQaeqrJlhjBrQ1qCSS4kluVSTinI9rv4cHR2pVgbGGiGN7cwXAPJrtvGtU/i1XsjexE1n2Kt/CQutBGGtDRkAAOQFAtq05T12csaHYMnPHeD+IErH/ZX/MPgF1UhRDFujx9Nx/p/wC1bG2Bm4+J/VOkqDQ2ys+iPALY2IDIALNKgxuourJCDnW3RgkNbzm/Zuf3NKZO1dB/xpuVIR8IqrvFYqVDUZT+UWk0VZgaX3l1SKfNl1Q4N2jDFw8VvissLDT2j2kBxINwFoZWpNBwOWeYwXZksLDvBqXVBxqSHfEBYP0ZEa1BNQb1SetW9nyvupurwFM1L0Rnp1vMudOIS3ruc4Xb2LWmgo450wNGPPdsW6zaEioHAyY409p/2mngnrNHsBvC9XE1r7xv9bdX5x/DHgKOLPCGNutyxPeSSfMlWIn5Y1MsK42yijDQAMh3rNCFpwCEIQf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhMTExMVFRIVFRIYFRgXFxUXFxcWFhUXFhYXFhcYHSggGBolHhcXITEhJSkrLi4uGCAzODMsNygtLisBCgoKDg0OGhAQFisfHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0rLS0tLS0tLS0tNS0tLS0tLS0tLS0rLS0tLf/AABEIAM8A8wMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABQYEBwIDCAH/xABGEAABAwIDBAYGCAQFAgcAAAABAAIDBBEFITEGEkFxBxMiUWGBMkJykaGxFCMzUmLB0fBDgpKyFSQ1wuFEojRTVHOTo/H/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAwIBBP/EACERAQEAAwACAwEBAQEAAAAAAAABAgMRITESQVEyYXET/9oADAMBAAIRAxEAPwDeKIiAiIgIiICIiAi6amqjjF5HtYO9zg0fFRkm1dAP+rgPKRrv7SV2S1y2RMooQbX0H/qov6rLLpccpZco6iF57myMJ9wKcv4dn6kERFx0REQEREBERAREQERcDK0ENuN43IFxcga2CDmiIgIi4OlaCASATewJFzbWw4oOaIiAiIgIiICIiAumrqmRML5HtYxurnENA5kqu7XbaQ0Q3B9ZUEZMBsG30dI71R4anlmNN49tFUVb96RxkcNGjKNmR9FujdCLnM6XKphruXm+k89kniNl450nwsu2mjMp+++7GeQ9J3/bzVCxfb6smJDp3NB9SH6se9vaPmSq+ILm8jt78LbgcdTqdDllwWQwhugAtnkBqOJ/p+KvMMZ6jz5bLfddLpZXne3Dc6ucc/MnPu965COY8WjzN+HfYesOOp5kdt/hb4EfPdRoOWvD/b/yt+WOx0iKX7zeHHv3fhn8W6XIb8Il+613I+ehAXeGnu7v9v6fBfMx38P9p+YKeTsdtBtDUU9tySWG3AOcGf0+ifcrpgnSlO2wmayZv3m2jk55dl3Kzeao3WW8v+Lj/tPvXTJCw8N0ji3lnccdD8Fy4y+41M+eq9BYBtTS1mUUlpLXMb+zIO/L1h4tJHippeYWyPjIOoBuHNuC0i5uRq21ib6aZ5rYuyPSS9m7HVkyR6CUC8jfbA9MeI7XtKGWr7xXx2/rbKLqpqhkjWvY4OY4Atc0ggg6EEartUVhERAREQFpPaqpc3GJHbxuyem3TfQBkRsO4Zn3lbsWhOkp5ZiVURkQ6Ejn1EStp93/AIlt9RvtFTdl9uopmNbOQyW3peo7x/CfDT5K2Nq4yLh7CO8OFvep3Gz23jlMp2O5aT6Rql3+JS2cd6M04Yb5t7DHjd7s3E8ytlY9thTU7TZwlkzs1huL/icMgPitJ1eIvqat0rzd8k0d7ZDVjQB4AADyVdWN9pbcpfEejkRFBcREQEREBUjb/bUUoMEBBqCO07IiIHj4vPAcNTwBz9vdqRQw9mxqJLiMfd75HDuHdxNvFaDqqt0rzclxJJcTmSSbkk+J4q2rX3zUduzniOyeodISS45m7nHNzySbkE6nI3JXOFptZosO7x7z3n0fcp7ZnY+oqzdrbMFgXOya0aWHflwC2xs/sRS0wBLetkHrPGQP4W6e+6rlsmKGOvLP/I1Xgux1XUWLIyGfed2W8OJ104K6Yb0WtFjNNn3MH+536LY4RRu3Kr46cYrVJsLQs/hF573OcfgLBSMeztI3Sni82NPzUoin8r+qTGT6RzsCpT/08P8A8bP0WLUbJUL9adg9m7f7SptE7XfjPxSa/o0pH/ZufGfJw9xz+KqeLdGtVHcxFsrfDJ39J/IlbiRbmzKMXVjfp5rq6GWFxDmua4d4IPmDyCwHCxu2wOdxoDy7jby5L0tieFQ1Dd2WNrxwuMxyOoWttqOjNzbvpiXtz7B9McvvfPmq47ZfaGWnLH15V/YXbR9I/dN3QE/WR8Wm+bmA6OHEceea3hR1TJWNkjcHMeAWuGhC8xVsD4nZggjLPI91j4C3krr0bbZ/RpBFK7/LyHO/8J5y3/Bp4+/gbtmvvmO6tnPFbuREXmeoREQFoTpYbbEKnxbCf/qaPyW+1pvpmw4sqo57fVzRhhPdJGTkebXC3slV0/0lt/lRqKsIspJuKG378P0UJDGRksgD5D816K8s8O2srif3yXXs/wBqaHxnhHvkaF0zsveynOj/AAwz11NG0XEb2zSHubEQ/Pm4NH8yeo7jPL0OiIvE9wiIgKPx7GI6SF00p7LdBxc46NHif1KkFpTpVx76RUmBp+qp7tPcZT6Z8sm+BDu9bwx+V4xnl8Z1TdqNopKyofK/0nZNA0a0aNHgPnc8VsDo+6OS5rZ6oFrTYhmjne191vxKrfRjs99Jr2OIvHBaR/dcHsN83fBpXoFV2Z/HxEsMJl5rrghaxoaxoa0CwAFgByXYiLzvQIiICIiAiIgIiICIiCtbWbHw1rSbBk1snga+DxxHjqtCbQ4PNQzOjlaW8R3Ed7TxC9QKmdK+BfSqFzmi8kF5B3loH1gHln/KFXXnZeJbNcvlD9FO2omY2kmP1jRaJx9ZoHoH8QGneB3jPZa8t4c90Za9hLXtIc0jUOBuCPNej9l8YFZSxTiwLm9sD1XtO68crg28LLu3DnlzVn3wlURFFYUdj2DQ1kD4Jm3Y7iMnNcNHNPBw/eSkUQee9p9javDyXOHW018pWjQcBI31D46ePBRbACLr0nVwtex7HAFrmua4HQgixBXmekP1Y5D5L16s7lPLy7MJjfDLwbAquukMdMy4Bs+R2UbPad3+AufBbv2J2Riw6Itad+Z9jLIRYuI0AHqtFzYeK6ujOBrMNp90W3g9zvFzpHXJ+A8grQo7M7bxbXhJOiIikoIiII7aLFBS0005/hscQO92jG+biB5rzg95N3ON3OJLidS4m5J8STdbb6acR3aeCAHOaQucO9kQB/ucw+S1dhdAaieGAfxZGNNtQ0ntnybc+S9Wmcx68269y43J0VYL9HoWyOFpKj613fuEfVj+nPm8q5LixgaAALAAADuA0C5LzZXt69GM5OCIi46IiICIiAiIgIiICIiAvhF19RB502rwf6HWTQAWYHb0f/tvzb7s2/ylXPoZxbdknpXHJ462P2m2ZIPMbh/lK7+mvDcqapAzBdC/kQXsv4Ah/wDUqJsviP0etppuDZWh3sSfVvJ5NcT5L1/3g8v8ZvRiIi8j1CIiD4/Q8l5fp3dgcgvUD9DyXliB3YHIL0aPtDd9PQnRz/ptL7B/vcrIq10b/wCm0nsH+9ysqjl7q2PqCIiy6IiINKdMFXv4g2PhFAwfzPc5zvhuLq6JKPrMRDyMoYpHjwc60Y+D3+5Ym31NM/EKyXqpDEHsbvhjywbkMYI3rW8fNWboRpjvVchBALacNJGRF5SSDxGnuXpt5reaTuxtVEReZ6RERAREQEREBERAREQEREBERBWOkqi63DakcWNEo8OqcHn4AjzWgZW3aR3hem8UpxJDLGdHxyNP8zSPzXmqjpJZLMZFI59mndaxznZi47IF816NN8PPunl6Q2frevpaeb/zIYnnm5gJ+JWeqz0aud/htMHgtcwSMIcCCOrleyxB09FWZQvteehERcdfH6HkvKkB7A5D5L1W4ZFaTk2KhiiqYnRzfSWOYIfrI9wCdxZBv2OZu071lXVnMe9S2YXLnGyOjb/TKT2D/e5WVRezGHfRqWKGxG4CLEgkdonMjI6qUU7e1SeIIiLjoiIgo/SRCI6OrLOyeqfIbE2MhNi4jS9gFYtmcMiggjbE2zdxgtcnIbxAz8XH3qO2+w189NIxhaOsYY3XvcAkHeaPWIzyJGuuVjh4btQ5kQa5g3mCzhc524hdmNrlykXCaVrAXONgFGf49HfIEjyVZ2m2g6xsJbcMcHGx+8CBw5/FRtNV3VMcP1i5/jZFNUteLtPlxXcqdhdaWkEfvwVtglDmhw0KxljxrHLrsREWWhERAREQEREBfCV9UPjNda7Rw159y7J2uW8ZFRizG8CfgudFiccpsDZ3cfy71TKuq8VEnFXMcC09oEW53yVf/OJ/OtrLW9Xh0dPijuqu0mje4necTeFgbGczwAHPirDie2DIjJZhPVtJd3mwvZoHFQtIx1XOyrLmRl8LonMcCLNfq+N3rkD1bDmFO4Vv5Re6WlZG3dY3dbvOdb8T3FzjnxJJPmu5AUWWhcZJA0XcQB3k2CwsTxRkIAPaefRaNT+gVepKOV/WGV+8JHOIDsyxp9Rp4AaLeOHWblxbGztLQ4OaWkXBuLEHiDxWttp8RtifVC5Epw61gSDuSyaEcM9Va6XBIWNDQMgLAdwR+z1MTvGJhdlnYXyXfhP1z5X8T7JWnQg8iCuQKgn4TFwFuWSxm0ckItC+wGjTmP8AhPh/p8/8WdFD4RjG9aOXszcrNd7OevgphYssal6IiLjqt7V1Ja5g4EH33VVr6B7u0wa6/ryVp24gJibIPUdnyP8A+fFY2DvD2Dkr4fyjl/TXzopDHIwg78JL2jvZ6w92fkvuH1twFZtoYeolZO0ZA2eO9p1VKxOH6NUOYPs3WfEe9jswPLMeS2wuNBVK1YBX2d1Z0OnPh+i1zhtXorJSz6Eaj5LNnY1LxsRFiYZViRgPEZHmsteeriIiAiIgIiIMXEaoRsLuPDmqZV1ORJ4qQx6u6x9gey1VjEqtWwx5Ecr2sbEKzxURQuMkpPqRDfeeXojzPyWHiVba+am8PoyyGKD+LUESS97Weo0+XxJVGHLDaSaa7yD23Z8vHwUtUULDutcXCxBs02BsdCOIKs1LSiNgFtAoaFvW1bGDQG55DMrnXeL8zQcgsbFK0QxukPAZDvPALLVO2/rLBkY5nzy/fNQxnavleRi4dIZHGV5u5xU7DIq5hzrAKXilV7EJUmJFy6xYTZVy61c411lGRdUki6TKumSROHWHirN4X4jMFTezWKdfHZ32jMnePcVA1b8libJ1e5VFvB2Xv/5suZzsMbytgoiKCzor6YSxvYdHAj9Pite4DUmGV8L8i1xstkqg7fUBjkZUsGRydzVNd+k859pfFKUSxOb3hazxemc+BzD9tSlzmd7oj6Y8tfJbEwOvErBnwVd2tpjDIyoYNDZw72nUFVnjwnVFw6r0zVswuu0VOxSmEExDfsnjfiP4HcP5Tl7ln4dVWsujZ+ztfuSWJ7Lv2D5K5LVNBWXAzzHy/fyWxcCretjH3m2B5cCo7J9qYX6SKIimoIiICjcererjP3nZDlxKkSVRdoMR35CfVGnLgtYTtZyvIjKyp3RnqVVsTrLrLxWtvfNVfEKrUq6LMwanE893/YxDrJOQ0b5n5FX/AGTp3SvfUPGbj2fBvAKp4ZQuayOmH2spEk/eAfQYeQ+JWz6KFsMYAyAC7R041WiNhPgurYCjJD6h2rjZvLj+SruKzuqZ2wszuRf3rZdBSiKNkbdGgDz4lTzvJxvCdvWQtZ7d1F6m3db5LZi1FtpJ/nHe0fmsa/bWfpKUMmQUnFIoGhkyCk4pF6EUm2RcusWG2RchIuOskyLrfIukyLqkkQddVIoSiqd2qafEKRqZFXmSf5hnMJfTk9t1Ar6uunN2tP4R8kXlel2LDxahE8T4z6wy8DwWYiDUWF1DqaZ0TsrGytdYxs8Rac7hYHSRhBG7UsGmT7fNR2z2K3ABK9ON7Hns5VUxKhLo5ICPrYC6SLvc312e7MeIUJQ1F7K8bYQFjmVEfpNOapOKxCOUPZ9lMN9v4XeuzyPwK6LDhtVYhXjZrE9x4z7JyPn+7rWFDUKz4VWad65Z0jcoKKK2erusiA9Zth5cP0UqvPZxeXoiL451gSdAuOojaSv6uPdGrvktcYpVa581N7S4lvvc7hw/JUfEKy6vjORHK9rEr6jVYuCwiSUyP+ygAe78TvUZ5nPyWHXT92ZOQHEk8Ap2jordVSt1uHzEcZDw5NGS2yt2xtGXF1RJ6TySpHaLFdxpAK5PnbDEAOAVWhY+sqGxtzuc+SOLb0d4UTvVLxmcm3+ava6KKmbExrG6NAC7158r2vRjOQWm9s//ABbvaPzW5Fpzb8Wqne0fmu4e2c/TsoJclKxyKt0M2SloZl6IilWyLl1iwGyrl1qDMMi6nyLHMy6pJkccaqXJQULrzt5hZtZPko3CjvVDeazWo3nSegz2W/IIvtOLNb7I+SLzPQ7EREHRXUrZY3Ru0cCFpKugfR1LonZAHs8lvRUrpK2f6+HrmD6yPXxat4ZcrGc6rElUJYi053CptVFcPgPfvRHueOHIjJZlBXkZFY+L9rtDUK6SHpJ+B1HA6gjJTlBU24qAq9esHHJ3td/msykmXBtrY7FAHNudcjyP6K/rSezdSd4LdFOSWNJ1LW352UtkUwrsUVtFVhkVr23vkNfyClVSekCcggcNz8ys4TtayvhRcbrt5x7lWaudZddPmVCVBLiGjUq6LJws9ozHSP0B3yHTnbX3K2bMs3byOzcePNVemAJaweiz4nifNT/0vdbYLozccxS+QKu/RtgfVRde8duTTwComyGEurakA/ZsN3FbvijDQGgWAAAHgFPZl9N4Y/bkiIoqi1R0n09pt7vsfgtrql9JGHb8YeBwI/f74LWHtnL01lRTqViqFWmvLTYrOhqVeVGxYWVC59eoVtSuYqV3rnEq6ddEs6wHVKx5apOnHbV1GS79kITJUN5hQdRNfJX7oyww74eRpn+ixa3I2gAvqIoLCIiAvjmggg5g5FfUQaR6QdnTRz9YwfUyG48DxCrTprg8bDP5fmvQ2MYZHUxOikF2u94PAhaZxvYuopZeyN5lzY8HNOoPkrY5dSyx4reGxh7rEXY7I+H/ACFZINhqoBrmsMkbhdrm2OV7ZjUFZOzux0r5Lgdkm9zw09LxC3JR04jjYwaNaB7kyy4Y49UXZXYx7HB8w3WjO2V3eHgFsBEUrl1STgojaPBRUsto8XsTob8CpdEl4WdaaxLYiq3rNiceViPfooHFtn3Um8JLdceANw0EX17yvQao+32zDpyZY8zazh4gWB91vcqY59rFw5Gm6V4aT4LKbvSuaxgu5xAACyzsxUF26GnXTmVs/YPYgUtppheY+iPu+PNat4zJ1NbG4A2jp2s/iOsXnx7vJTyIo29Wk4IiLgLHr6QSscw8fgeCyEQaU2s2bfG8kBVQlzdV6LxDD2TCzhn3qkY1sJe5aL8v0VZl1O4tWtqly+lqyVexcjToVhnZOXuK0zxDGqXDrSdFZKfY6Q8CrJhGwRuC4e/JOnFRwHA3yuFwbLdGz2FinjAt2ja/5BfcJwWOACwBd8uSk1PLLqmOPBERYaEREBERAXxzQcjmF9RB8a0DQW5L6iICIiAiIgIiIOIYL3sL99lyREBERAREQEREBERB8LQdVw6hn3W+4LsRBxawDQALkiICIiAiIg//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAPEBAQEBEQEBAVDRsSDhUODRANEBsQGxEiIiARHx8ZHTEsJCYwHB8TIT0hMSorLi46GCA8ODQ4QzQuLi0BCgoKDg0NDw8PDisZHxkrKysrKysrNysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIAMgAyAMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAgH/xABKEAABAwICBQcJBQMJCQAAAAABAAIDBBEFIQcSMUFRBhMiYXGBkRQyUnKCobHB8CNCYpLRCKLxFSVTY2R0k7LCMzRzg6Oks9Lh/8QAFgEBAQEAAAAAAAAAAAAAAAAAAAEC/8QAFhEBAQEAAAAAAAAAAAAAAAAAAAER/9oADAMBAAIRAxEAPwCcUREBERAREQEREBERARWmI4lBSsMtRLHBGPvTSNibfhcnb1LUqjSxg7CQJ5JP+FSVDh3Etsg3hFokelrCTtfUNHE0c7h+6Cr6j0l4NKQBWxsP9eyWmHjI0BBtqK3oq2KduvDLHMzc6KRsrfFpVwgIiICIiAiIgIiICIiAiIgIiICIiAiIgLQdIekRmHk01MGTVtgX61zFC0jJz7bXHK0e22ZsLXvNJXLEYZThsRHlcwIp7t1gxo86ocNlhcWB2kgbL25sxCvJLjrOc5zi97nuL3ueTcvcTtJNySgyOMYxJUSmaplfUTH78pBt1NaMmjqAAWOOJhYwkuWd5JckqrFJuZpmA2AMsj7tijadhcevOzRcmx4EoKUNe0ngfAq4cA7MWB47Ae39fFTjyf0M4XTsHlDX1stuk6VzomX/AAsYch2lx61iOVmh9jWmXCy5rhtppZNdjvUe83aepxIPEIIhp3mJ+vG58MgPnxPdDID6zSD71IfJLSvV0xDK29ZT+n0W1TBlmCMnjbkbO6zsUfzxkEgtLXNcWva9pY8OBsWEHMEG+W6xCpBB1nhWJw1cLKinkbLC9t43N2HqzzBBuCDYgggq7XNXILljLhVRrZvpZHDyuLq/p2fjA3feGXokdIUs7JWMkjcHxvYHxuabtcxwuHA8CLFBVREQEREBERAREQEREBERAREQFRrKpkMcksjgyOOMySOOwMa25d4Aqsot06Y/zVPFQtOcx52ozH+7xkWb7Umr2hj0ER8tOUkldUy1Ml2mQ2jYT5kIvqRdwJJ/E5y1a11UneXOJPFVIYkGS5L8n5sQqYqWAXe92biOiyMedK7qA8SQBmQupuS3J6DDaZlNTts1ub3EDXfKdsrjvJy7AABkAFqWhjkqKOjFVI21RVND8x0mU21kfVfzz6wB2KREBERBE+mfkiCw4nA3pNsK5rW31o8gKjtbkD+HM+aocazMjrXXE0TXtcx4DmuaWvDhdpaRYtI4WXL/ACjwY4fXz0ZuWsktEXbTC4a0Zvv6Nm34tKDGCIqW9CPKM2kwyU+a0zUd7D7O414e4kOHU924KM2Rq4oK19HPDVR314ZRIA3IuaPOj9phe32laOn0VKlqGSsZJGQ5j2B7HDYWOFw4d1lVUBERAREQEREBERAREQEREBct6TccNZiFVKCSwTcxDncc1ES3Ltfzj/bXRvK7FfIqCrqdjo6Zzo7/ANLq2aO9xaO9cj1IzDRnqgN8AgpxMutu5A8nv5Qr6emIvEXc5UcOYZYuB7Tqs9ta3TRqb9AuEAMq6wjpOkFNEeDGgOcR2uc0f8tBLIC+oiAiIgKG9PuGFr6OtaNodTSH8QvJH8J/FTItL0wUPPYRUm13RFk7exkgLj+TXQQdC4HYqxF1j6F3RaOAt4H+Cv2laE26JMQ57DI2E3dTyOpj6rc2D/DdGtzUUaE6u0tdTk7WxzMHXm1x8BEpXWQREQEREBERAREQEREBERBHmnOu5vCxHf8A21ZGwj8LLyH3sHiuchmb9amz9oaoP83xXytNIe0BjR7nPUKNJBFrEn0jYIMhTMXTGjSh5jCaFtrF1OJnetKdc/5rdy5mj5w6rObH2jxGDzg2vNgbDuXXkEQjY1jcmtaGt7ALBBUREQEREBWGPUnP0lVDt5ylkjzNh0oyPmr9EHIuGOuwXtuPi0f/AFZSIDh4ZfBYxkXNSSxH7kzmZbOjIW/JX0T1YN50TT6mKsGf2lHLHtvscx2/1SpyXPWjyo1cWoDxlez81O8fFdCqAiIgIiICIiAiIgIiICIiCBP2gpr19Oz0cO1vzzuH+hRhFE11r38bKRdPLycVA9HD4gP8WQ/NR/TBBmeTFC11dQbSf5QgA1iC2wnbkcuF11YuY+RDdbEsPH9uYfA3+S6cQEREBERAREQcmYyNWtrRwrph4VDl4jkXzHX3ra08a+Y/9w5WzXqja+Qkv864d/fB/wCNy6VXMWj03xbDv738InLp1QEREBERAREQEREBERAREQc9ad2WxUH0qCIjulkC0CBSVp/htiFO/wBLDtX8k7v/AHUbwhBsvIl+riOHn+3xjxNvmunVyvyem5uron3sG4hA4k7LeUNufC66oQEREBFRq6qOFjpZXsijaLvfI9sbAOJJyCjXHdNNFES2khlrCPvk+Sw9xcC4/lt1oJQRQnHpxn1jrUEJbuArHh3jzfyC27A9KdBWtMbi6kqCw6jKstjjc7V80SA6viQepBzzUTmSSSQ7Xyvf1dKQn5r4CreDzW9g+CqhBueiWHXxqi3hvOyHup3AHxc1dKqANA9EZMTll1bthoXZ8JJJGgD8rZFP6AiIgIiICIiAiIgIiICIiCHP2h6V2rh89ugHSwvPBzmtc3/I9Q3Ty3NhmfrNdMaWKNs2D1utq3ZGJmFwHnseHWF95ALfasuc2QNjGowWG1x3k7r/ACQGSPBBbkQ4EHabg3HvsttGkrG9vljezyOm1ezzL+9au0I57RtNlRJWC6ZqlhAraaOZl830hMMgHHVeSHH2mqQHaRcN8ifWtm12NIaYgNWp54jKHUdY3OeeywJvYErnZrmO2OB716ZEPOsL2yNswPl/DrQZDljyqqsUlMlQ7ViD7wQMN4Yxu9Z1r3eeJtYZLW3K9mAAvsAG9W8kB+8LfhO23X+nigoB3DP4KqyRmbS67rHojPdvVrXTFoAG07+AC9YVB0S87+izsG13wHioPoYW3B43B49S9gbBx2cVftZxVWNjW7AAeIFimCc9CWDNp8MbPb7WpkdJKcvNa8tYzLdqjW7XlSCta0akHCMO1d1GwH1gLH33WyoCIiAiIgIiICIiAiIgIiIIg024+4yQ4ex1mNYKiqsdrtY83H3Wc+3HUO5RM49I9qy/KrE/Kq+tnvcPqnhh/qmdBv7rWlYW+d+OasHqR9gSsHOXvNye5ZiobdpHUsW1KLjBYs3OduyA3dZ+A9orMOcsdSnVaB9fX6KsZCbAGxJtfeOLvC5QZTDaYO+0dawNohuLxtk7jcDrBO4LxXQbSvcVWAABk0ABo3Bo2BU8Qr2xxl5zOxg4vOz9VRrtVDzk2pewazpncBtJ99rcVdGbcwarRk0cANgv4+JXqnoXCF00hswy2cfvST7eab1DaXblSB7OwbFBWYRtJc7sdqj68FdRTN3tcB1SXP7w/RWTSqjSgnbQljzZaV9CSNencXx7i6nkeTs4tfrN6hqcVJS5q0Z4v5HilK8+bK/yWT1ZSAD3SCI+K6VUBERAREQEREBERAREQF4mdZrjvDSR4L2vhCDj+B/QaTt1QT3i69MernHMPNJUz0zsjDO6Lta13Rd3s1T3rHk2zVF3e4WNqI9UngdivIpLr7LGHCxSii12QX1rsyeAt4/Q8V4OWXDJfGHI+t8lBXEqpwg1EzW6wa0O1Gk7Gja+XuFz4KnLJqtceAy7d3yVGnyFh6Aae/M/6R3KjJ4rXCZ7RGCynjZzdLH6MQPnH8Tj0ieJ6laNXkK5p48r7zk36+tiopX29tvr3r3E++S9ZMIyuBlnvVKEdLsBUGXwFpNXRhps418AaduflLV1eucNFGE+VYrTXF2QA1UnsZM/6jmH2Suj1AREQEREBERAREQEREBERBC+nTkqQ5uJxN6BaI6625wyjn+DCb7mdah0ldjVMDJGPjka17HsLJGvAc1zCLFpB2gi4sufdIei6egc+eia+oo/O1Gh0k8I3tI2uYNztoHnbNYhHTXkKuyVWgcDs/VLoLmUbxv+KpNOR9b5IyTij8rndvvl3qijVnoO7vivUO/1vr5LzILgg7x9fJKQ5e49o+h71BXCvorGMd4PUb/wVkF7Y4jYSFoe3x23lx3X3IwBoJPaSvhO8nvJyUr6KNHj5Xx4hWsLImkPpIZGkOe4bJ3g7GjItbtcczlbWg3LRHyWdQUZlmbq1NSRJI0izmRAdCE9YBc4ji8jct7RFAREQEREBERAREQEREBU3x3+8QqiILKWjcdkhCsJ8InObZ3NO6xss4iCL+Uuixta4yP5tspzdJAxsDyeLg3InrIutTqdCtSD0J7j8cQcfEFT4iDnxmh2qHnSH2I7fG6z+Acg3UDucbTMmlHmvqGc8W+qD0Qeu11MiIIH5TaPxUEyQ0klJKfOFOA+mPZG62r2NdbqWlVPIHFYyS2me/iWDIjrBXVqIOT28ksT30FSD6gI8bq5peRGJvIBpJIx6UosB+W59y6nRBEXIzkRR0bmTTxT1lQM2maAR07Hek1mdz+JxPEAKUIcQDvuPHa0q9RB4ZKDx7wvaIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhIVFhUVFxUXFxcYFxUVFRUVFRUWFhUXFRUYHSggGBolHRUVITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGBAQFy0fHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0rLS0tLSstKy0rLS0tLS0tLS0tLi0tLS0tKy0rLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcCAQj/xAA/EAACAQIDBQQHBQcDBQAAAAAAAQIDEQQhMQUSQVFhBnGBkRMiobHB0fAyQlJi4QcUM3KCkvEVQ7IWRFNzs//EABgBAQEBAQEAAAAAAAAAAAAAAAADAgEE/8QAHxEBAQEBAAIDAQEBAAAAAAAAAAECEQMxIUFREhNh/9oADAMBAAIRAxEAPwDuIAAAAAAAAAAAwYnFRgrtlTicZKWr3VyWvjyMa3I1M2rWtjYR1kjA9qR4Rk/B+8pnVS08+PnqeHiSd8lbmIu/9U/Iz3HaUON13qxQLFGeliB/pp3+I2GnWjLRpmQootP9MiTSxUo/mXXXzNTyfrNx+LQGGhiIy0efLiZisvUwAAAAAAAAAAAAAAAAAAAAAAMdesoq7/yB6nJLUhYrG2V9ERq2JbZBrVbu/LTv5/XwIa3b6Vzh9rVs7vXh0/UgYjFWMWNxVkartTa+tmYbXeJ2mlxINTbC5msfvM5/ZUpfypy9xjqucc5QnFfmjJe8HW0x2x1JWH2wuZpEcSnxM0K/UHXScJtJPiWdLEpnL8Pj5R4l5s/bnNh1vifFZPmidhcZ92evB8Ga3gdoqXEtIyTR2asZslXoIGDxVvVl4P4MnnozrqNnAAHXAAAAAAAAAAAAAAAAHmckk29EUWKxTk7+XRErbWJtaC45v4IppVCPk19K4z9s8qmWWvDvZExFWyMkpe73lZtCo9Iq8m0klq28kibaEsNVxVX0VLLjOb+zCPN83yXHza3DZPZHC0En6NVJ8Z1EpO/RPKPgibsLZccPSUFnJ5zl+Kb18FouiLEvnHEta6+JWyR9ANsK3H7Bwtb+Lh6cnz3UpeElmvM1Ta37NaTu8NVlTfCM7zh3X+0u/M30HLmV2Wxwja+yMRhZbtem4p5Ka9anLulz6Oz6EWFU75icPCpFwqRjKMlZxkk011TOY9r+wcqN62ETlTWcqWcpwXOD1lHpquvCWvHz0pNqTAbTcXqbjsnaylbM5nTrFps3HOL1JtusU5poscDiL+rLXg+a+ZqGxdp3Suy/jLitTudcrlnYvAYcLW3o348e8zHol6gAA6AAAAAAAAAAAAEXadXdpTfS3nl8RRreLxG/OUuby7uHsMFz5J2V2eoYacvyLm1m/wCn5nlej0+zlr9aHvs9hfSYjeelJX/qldR9m8/AwVcJNaTT71b2psu+yVFqlKUlZym/KNkvbc1idrOr8LwAHoRAAAAAAAAc0/aH2O3d7F4aOWbrU17akV/yXjzOf0ah+i2cY7f9m/3St6SmrUKre7yhPWUO7iul1wJbz9qZ19PGxsa00b7svF7yOWYGrmjc9iYrQkpG64WtuS6PJ/MuDXoS3olvs6tvRs9Vl8inj19Mbn2lAAskAAAAAAAAAAAQNtUpSppRaXrK9+Wf6E8jY92jf60M69V3PtT08NTp2cneX4pc+nIjSxik5KN8rZ87/wCD5UoO95yduC6df0IOLxkY8UktXkkkubPOssKuhebHjajDxfm2zWpY+lKnvU6kZZX9WSfuNp2dG1KCeu7H3FPH7Y36SQAWTAAAAAAAACu7QbJhisPOjP7y9V/hms4yXc/iixAH55jTlTnKnNWnCTjJcnF2Zsmx6xP/AGo7I9HiIYmK9Wst2f8A7ILJ+Mf+BS7NlZo82pyr5vXQNl1rqxaYGru1Fyll8jXdl1NC3qTyumcl5XbOtkBjw1Xeipc1/kyHqecAAAAAAAAAAAw4um5QaWvDvMxW9oNs08JRlWqcMox4zm9Ix6+5XfA5fTsaLtrbNRTlTUGpRyk53hCL175ZPhl1IOxMJ+81r1G6sadpTbVqa/DGENLtrjd65lFRWIxda8vtVZt8VFOTu+6K9yOjYPCww9JQh9mPHjOT1m+r9isjy/a7LhsDCpXgpRTSvJ+Ga8L2NsKXs7hnaVWWs8o/yrj4v3Iuj0eOciO78gANsgAAAAAAAAAAou22zfT4OrFK8or0kLa71P1rLq0mvE5jsnBVqiTypxfGWcmukeHj5HaznaoejqTp/glJLuTy9liXkn2p46zbN2XFJb0pzfWVvZGxdxwkLW3fa/mQsNNLVk+lWT0dySi12XFKG6tE311zJhB2XK6l4E49GPSGvYADTgAAAAAAAD43bNnJO0OPeMrubv6OF40o8FHjK3OVk/JcDpnaBv8Ad6qWrju/3eq/eaRhdmpcCHl1fSvjn2wdnKW7V0+7K3i4xb8pPzNqwuE9LUs/sxzl15LxNfhXhGrDdabV4u2l24u29pf1dNehf7HxM/XaSzazd7K18l+LXX/Cnj38t6/42RIxVMVCOsl737CFOcpK0n8PcY1RRa+T8SmP1M/1CHXyMsMTF8fPIrHRCH913+IuQVVOu46Pw4E+hiFLv5G5qVm54zAA0yAAAAABoHbyc6FVVVFuNVJXSv66Vt3pdJPPryN/Im1cH6ajOn+KOXSSzi/NIzqdjWbyuWYZ4qpn6tNfm9eXkrJe0vtnYOa/7id+kaaXluml7S2viaeIjRhTcpNtqN1BJQlGM1PqmzcMHjVdO+j5p6ZPNHmXbrsWmo0lZtvPebtdy62SXInlHgcVuNS+5LXo+ZeI9GL2IanKAA2yAAAAAAAAh7Yi3RnbWy101RqccC5fxZby/AvVh4rWXi7dEbjjo3py7vdmUCiS8k+VMelLtumoxoNJJRrQVlkkmpLJeRP2fimopptZJ6R+9m+HUhdrnahF8q1D/wCiPux571KnLnTg/OKZL7Unyu1tCXFJ9Vk/Jv4majjYvXL64rgV1jxKN+jWj4jpxe3MVRFXh8Y45PT60+RP9Kmro11njy5CNVp3R5m7mJs46vcHi1NW4r6uiSaxTquLTTzRsGDxKnG/HiupbGu/Ces8ZwAbYACJjMZu5LOXu7zlvHZOs1evGKzfhxK+rtbkkig21teNNNylmafV7Xrey0I68lUmG743Y2FxEnKrRi5O95JyjLO184tNXsvIgf8AScKSboTko67k3vJPjuy1XjckbBxqq01NaMuZSyMe2vSp2fJpOEkbHsivvQs9Y5eHAoq7zJ2xayUnd2vl48DWPiua+YvQAehEAAAAAAAB8krq3M1qjUUkpLRmzHOFOcJTjGbjaUlkovNNrSSaJ+T6bxOvva6oqnosNF+tKXpJflhGMkm/65R/tZYYSKVkskkkl0WhD2Xsu8pSz3pu85yblKXLN8FwSyXA2ShgYJae8l7U9ISPk4ljPBx4XXtRFq0WtfP60Ocd6hVInmhXcXnp9Z95nqRItRAWUZXPsoldhMRZ2en17CzQcRZmbB4pwkmvFc0eayI9zo26lUUkmtGeih2Pjd2W43lLTo/1Lyc0k29Fmy+ddiNnKwY3E7iy+09Pma5tXG+ji23mWTm5Nzlx06LgjS+1WIbTSI711XOeNL2/tOVWbzyKLEYtQy1fL5mTaVbde6s5P2EnZXZmpU9ad0n5szJ91q38dC/ZhOU8IpSVrznbuT/ybjORU9ksAqOGhBK1k3/c2/iWNSR1xFrHvBvN93xRjqMyYNZvu+KOC92fiH9l+HyJxR0Z2afJovC+L2JbnyAA2yAAAAABo+08LbFTjwb3/CSu/bc3g1jtS0qkWvtOKTf5U218THk9N49vFHFKGUVclU8fzRR0pEiEyHVeL1VU1dGKpIrqdZrNMlRnvLLXlz7g4w1kRKhJqSIdR+QdjDNeZNwOJv6r1IU5GNys7rXj8wVdTI1RHujW3lf6ueagcYt4tntD0lOMPvX9bqlp5/BlHORlwdfdmm9Hk/E7Lw4stoVt2FjQu0mK3ISm+5dW9DbtsVOBpuMpelxEYP7NJb8usn9lfEzXYhdmezn+7WV5yzty5I22OHWiRkoU7Im4KjeS6Zj26soLdglySRFqzMuJnwIk2aZeXIlYVZPwXx+RCZOw69VeL+HwODJiZ2jJ8k/cbHF3SfM1Pak7U5dcvM2TZ096lTfOEfOyuV8f2xtJABVMAAAAADUu1/8AFh/J8Wbaa72yoXhCa+67PuehjfprHtr9GZnjMr6czMpvgQXToyM0J2z0IVOfMzxkBMru63uP3l8SBUZKpyt7n1RErxs2g4iuednw93A874r8zBJgS8HiN2Vno/pFtJGtylx5fVi82dX3odY5eHBhyseJjYhzqE/FvJlJWrAWOJrbyT6Z+GpS7ChvOVT/AMk2/wClZR9iM9Wu/wB3nJapSS72svayTsmhuxjFfdikZaixhEs6K9HG71Z4wuGst6XgV+0Mdd24HY5WSde7G+VyrGWFY64lrNlhH68CFgI3d+XvJc8jor9tVcox5u/kbL2cnehHpde2/wATSsdW3qtuWXzN17OQtRXVt+23wNeP2zv0swAXSAAAAAAwY7DKpTlB/eVu58GZwBzGrTcJSjLJxdn4GSnI2TtbslyXpoLNL10uKXHwNThM82pyry9T4v69hnhIh06pIgzjSXTkeMTonyy+R4jI9VHk/D4hyoVYjyzSZkrSMMXl5+9gjwzNs3Ebsujy8HoYWzFe0u+/z+AFrisQUWLq5kmpVuQKlNymorK7WfLqHF7hNkzqYWO7b15KWbtkqi+ES9wWBjSV5tN+xfMgf6rTpxUY6RSS7krIpdobblPJaHHVxtjbKfqx0KCWKuyBOq2eFM6LOOJJVCtcpfSE7CT3c+PuQcbdgpKMbefefNoYlQg5eXfwKfD4sjbRxTqSUVotTvTj3sui5yVs3J2XizpWHpKEYxWkUl5Gu9kdmWXppLpBdOMvh5mzFfHnk6nu9+AAFGAAAAAAAABmndouzzi3Voq8dZRXDquhuIM6zK7Lxy6EyVTq5fXP9DbNq9nKdX1o+pLpo+9Gv1+z9eD+zvLms/YiNxYtNSo6qHudT1ZPuXle/vI1Vejdqs1B5XX3/JrIg4vaUXZR0Wi1MuslaqfN6yS+upDhJyd3pwXxZmlMD25GGUs13o+NmNzz7s/rxAyx18T1tzZNbDuMqkbRmsms7P8ABJ8JW/TRmw9j9iOclWqK0Iu8U/vyXHuT9pueNwkKsJU6kVKMlZr4rk+pTOOxi65XGfSHiTJW29mzw1V05p2z3JcJx4Ndea4Mr5VSfGusm8ed4wOtyz7jJRpN5y8uHjzAkUFfPy+ZLgzFBE3A4KpVluUoOUtbaJLm28kgPKqNaas2PsxsB1LTqK1PXk6j6fl6lhsTsfGDU67U5fhX2F3vWXdp3m1JW0K58f6xd/hFWyWSR9AKpgAAAAAAAAAAAAAAAIO1dk0sRHdqxvbSSylHufw0NG2t2RrUrumvSw6L113x4+HkdHBnWZWpqxxvftk8mtU8mn1R9dU61jNn0qv8SnCf80U2u56orZ9ksG/9nynUXs3if+da/tzSpWNl7LdmJVWqlZONPVReTny7o9ePtNvwWwMNSd4UYJ83eTXc5XaLI7nx/rl3+PkIpJJKyWSSySS0SPoBVhB2vsqniabp1Y3XB/ei+cXzOV7f7OVMLL1o70H9mol6r6P8MunvOxHycU1ZpNPg80Z1mVqa44UoEijBt2Su+S1OuT2DhW7vD0r/AMkV7iXhsFTp/wAOnCH8sVH3GP8ANr+2g7G7J1qtnUXoodV677o8PH2m9bN2dToQ3KcbLi9ZSfOT4slg3nMjF1aAA04AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQERASDxEVERMREg4VFRcSFRAQExIYFxEXFhYVGBYYHSgiGBolGxMVITIhJSkrLi4uFx8zODMsNzQtLisBCgoKDg0OFRAPFSsdHR0tKy0rKzcuODUrKysrKystNzgrNy03MDAtNy0rKystLS0tLSsrLTcrKy0tLSsvLTgtK//AABEIAKgBKwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAQIEBQYHCAP/xABGEAACAQICBgcEBgYIBwAAAAAAAQIDEQQhBQcSMUFhBhMiUXGBkRQyobFCUnKSwdFigqKzwvAjJDRDU2Oy4RUzdIOTw/H/xAAWAQEBAQAAAAAAAAAAAAAAAAAAAQL/xAAYEQEBAQEBAAAAAAAAAAAAAAAAARExAv/aAAwDAQACEQMRAD8A7eAAAAAAAAEAgKgAAAAAAAAAAAAAGK6RafoYCl1teW+6hGNnOo+6K/Hcjk2mdZGNryfUyWGhwjTUZSt+lOSvfwSBrtwOBUOnekaXaWJlNLepxhL5o2zQGthSssVTTX16WTXjBvPya8AmuogtdHaQpYiCqUJqpB8Vw5Nb0+TLoKAAAAABDJIYEAAAAAAAAAAAAAAAAAAAEAgKgAAAAAAAAAAMfp3S9LBUKles7RgskvenJ+7CPe28jIHA9ZfSz23EONOV8PQco07bqkt0qvO+5cs+LCVhukvSGrjK0q1d5vKMV7tOPCEfz4u7MHLHZlpXrOTLrR2jnUkiouaGNT3mMrTcKjUM08132udb0DqxnVgpVoxpp/WvtPyW7zsc26c6I9ixlbDp3VKdk2t6lCFSPwqW8gM50G6ZTwVaMm3sOyqRe6cfzW9P/c9FYevGpCM4NSjOMZRa3NNXT9GeRcJWa8PgegNTGk+uwEqbeeHqzguPYklOPleUl+qFjfgARQAACGSQwIAAAAAAAAAAAAAAAAAAAIBAVAAAAAAAAAADR9ben/ZcE6VOTVXFNwjZ2ags6svS0fGaPPVWttG36z+kHteNrSi706bdCl3bMG9qS+1Pad+K2TTKMbu+4rNXmDwzbStdtqyWbZ3XV50EWFjGviop1mk4weapc33z+XjuxmpzotDqlja8FKcpNUL7oqOTnbddyul3bN0dTIsgeftetG2kU/r0MPL41I/wI9AnCte8L46j/wBLR/e1wVy+B17UDin1uOpt+9Tw80vsymn/AK0cpVE6JqKk46Sqx+tg6z9K1H82VHeQARoAAAhkkMCAAAAAAAAAAAAAAAAAAACAQFQAAAAAAABrmsHTXsWAr1Iu1Sa6ql37dTsprnFbUv1TYzjeu/S+1XoYZPs0KbrT7tud4wXioqT8KgHJsZLPZW6KsjIdH9GSxNejQp+9VnGKe+13nLwSu/IxdJbUrnWtR2htutWxUllRj1cPtzXaa5qOX/cKy6/gMHChSp0qatClCEIrlFWXyLgAjQcM1y9vSSX1cPRX7U5fxnczgOsGv1ulMW73UZU4LlsU4xkvvJhK1T2c3nUrQtpKo+7CVvjWo/kax1WRvepmh/WsVP6tGEfvVL/wFR1wAEaAAAIZJDAgAAAAAAAAAAAAAAAAAAAgEBUAAAAAAAAeXOmelvasTiq97qtWm4P/AC49in+xGJ6E6e6T9l0di6qezLqnCD7p1GqcH5Smn5HmLSd7xhFXskrXsVKYWGXielNWuivZdHYeLVpVY9dPg71M1fmo7K8jz30awjxWJw+HcHF1KlKD3NbLmlJpruV2eq4xSSSySyXIESC3x2OpUIOpXqQpQW+U5KC8LvjyNI0trb0fRbVPrK7XGEVCPrNp+iIrfK1VQjKUnaMU5N9ySu2ea5Yh16tWtLJ1alSo+TlJyfzNv6Ra2I4zC16NHDypurFQ25TUlaT7StbNuN1v4mm4GhZK1433d3knkVKvJRyOiamKHZxtT60qEPuxlJ/vEc5rOSXB+sfzudZ1QUNnAOdrdbXrS+7s0/8A1gjdwARQAACGSQwIAAAAAAAAAAAAAAAAAAAIBAVAAAAAABgOmPSino6jtyW3VndUqd7ObW9t8IK6u+aW9oDUtd2OapYTDR31Ks6slw2aUbWfLaqRf6pw+tF9a27PwMr0k6R4jH1nOtUcnuy7MYq/uxjwXx77ljCKgrsrLatW9ajR0hRr4qcacKcalm7vtOEorcv0t/I6b0w1lUcNFwwThiKrV9u+1RpX3bTT7cv0U/Frc+HYeamrrd8/AvYxUVeXkv54gfXTGkcRjJupiasqks7OX0V3RjuguSRhqjhHfn8W/AnH49vKO7+fX+fEsIRcs/Vvd5tgXlGbnJZWS3JcPzfM27RuKlGMU7NLg/FPf5W8HLvNTwdSEd8r/ZUpfFKxmaGlaa37UebhJL1sS+ZerLZxlcdVg4PsbLUd6e93jZ8slLhvOrapMRGei6KW+nUxMZcm685r9mcX5nHateM43hJSXencyurbpW9H4nq6j/q+IlFVL/3ct0aq+CfLwQnnOG67+AAoAABDJIYEAAAAAAAAAAAAAAAAAAAEAgKgAAAAFnpfSdLC0alevLZp043b4vuSXFt2SXM88dM+kFTGTniKnZ2+zThe6p01fZj45tt8W3yNq10dIHVxFPBQl2KLg6lvpVJx2kn9mH7x9xzrpDK0YIqVZ4GNk5MtJbVeaV7Q+aLmrlSS77IYKNvP5BGToJRSyyWSSLTH4nhx5fJfzn6WqxeIULLk8+Cf/wA/Ex0X1jsnkvekv9Kffz4AULNu2b4t+6vzfI+kYX97tW3X3LwW5FTjujFeCXAvKGCS9535LID6YOG4yilGHvQqtZdqnGFRLxTmn6XLajsx3RXzL6li1ucfTIlmrGNxFKPv0Xst3z2ZRUrP6UJJNrxSZb7W1m1Z3tJb7Px4p70zI6Q3XTunx/Blg1uffk/mvjl+syo9IdA9IPEaPwlSTvLq9iTe9unJ023zexfzM+adqlT/AOGUb/4mIt/5Zfjc3EjQAABDJIYEAAAAAAAAAAAAAAAAAAAEAgKgAAAKaiumlxTA8s6Z0h1+Kq1279bXqzXhKTcV5JpeRaadleMWWUm1CF8nHYuu7KzXxJxFbahYrKqbvSjya+Qo1LZ9x8cBPajKHHevLMpl3ATUrN3fp4vcVUp5KKz/ABfFnylHNLuTfrkvk/Uu8BTzb7gLuhSUVze9959kylEgVplakfJMlMD7Ke9Pc95bNWjK/Br4SR9UzK9DdDPHY6lQteG1GdXu6uFnJPxyj4zQHd+hGAeH0fhKclaSpRlJd0p9uS9ZMzgBGgAACGSQwIAAAAAAAAAAAAAAAAAAAIBAVAAAAAPLnTnRTwuPxlFqy62co8Lwqf0kLeCnbxizXYxbuuKyZ3jXP0TeIpRxtCN6mHi41UlnOjdva5uDbfhKXcjiFSj9KO9cPrLu8SssY705bSLynZ5rcz79Wpr5rin3NFNHD7OXD5AUbPafhH8S6w3E+bjmueX5fifSKsBcIqRRFhvdkB9CSlMm4Et23nctVPRd4PDOtWjavitmTT306f8Adw5Ozu+btwNL1adCJYucMViY2w0GpQjJf2iSd1l/hp53+luzVztoWAAIoAABDJIYEAAAAAAAAAAAAAAAAAAAEAgKgAAAAA490+1ZyhKeI0dDag25ToRXag+LpLjH9DeuF1kuwgDybUpLaad4TWX1XlvWeTtnkz6xpS+lDa5waT+7LL4npDpB0QwWOv7RQi5P6cexPza97zuarX1TUr/0WKnFd04RqP1TiVMcZlhXbc0uasylU7e9lz4f7HcMFqtoRadavUqLuio0k+T3v0aLzH6s8BU9yNSg/wDLm5J+KqbXwsDHCFhXwJWEnyZ2Nao8Pf8AtFVLlGEX6oymj9WeApWc41K7X+NUbj92Nk/O4McU0ZoTEYmfV4em6k+Kh2tnnJ7oLnJpHVOiOqylRcaukHGvNZqks6MftX/5j5Ps8nkzoWDwlOjBQo0404LdGEYwivJH3IYhK2SySJACgAAAAAQySGBAAAAAAAAAAAAAAAAAAABAAVAAAAAAAAAAAAAAAAAAAAAAAAAAAQwAIAAAAAAAAAAH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTEhIWEhUWFhkSFxUVGBUYFRUVFhUWGhYZFhUYHSghGB0lGxUVIjEiJSorLi4uGB8zODMtNygtLisBCgoKDQ0OGg4QFzUeHR0tODYtLTgrLTcrNy8rNzIrNy03LS00LSs3LTUtKzctLS0rNzctLS0tNys4LSsrKystLP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQcEBggDAgH/xABMEAABAwICBgYFCgIFDAMAAAABAAIDBBESIQUGMUFRcQcTImGBkTJSobHwFCNCYnKCkqLB0bLCCENjo+EXMzREU1Rkc4OTs8MVJCX/xAAWAQEBAQAAAAAAAAAAAAAAAAAAAQL/xAAaEQEBAQEAAwAAAAAAAAAAAAAAARECEjFB/9oADAMBAAIRAxEAPwC8UREBERAREQEREBERAREQERanrFrvDACIy17hkXE/Ng8BbN57h5oNsWLUaRhj9OaNn2ntb7yqV0xr1LKTdz3jhfAz8I2+IUG7T0m5rB4OP6hBfh1jo/8AeYjye0+4r9GsNIf9Yj/EFQTdOvPpMY7wI95K9WVsL9odCeLT2fjmEHQMOkoX+jNG7k9p9xWUucax0sQxX6xm3G3cO8fqPYvXR2tU0djHK9vJxt5bCg6JRVZoHpOeCG1LRI312WDx3lux3sVk6N0jFURiSF4e07xuPAjaD3FBlIiICIiAiIgIiICIiAiIgIiICIiAiIgIi1jX/TwpacgGz5AQOOEWxEd+YHde+5BrnSDrphvBCbjY4g+nuOfqD83JVNX15ccT3XPu7gNyxNKaWu4m93Hadw7h3KFklLtqCRl0jwWM6uPFZGrugKiumEFMzG85knJjG39J7vot9p2AE5K/dTui6jog18rRVT5HrJACxh/s4zk3mbu7xsQUforRddUAGClnlacw9sb8B5SWw+1SsurmkYxeShnt9WMvt+C66WRBzHQ1zmEgbjZzHZcwRuK8NL0YDevh9C/zjPUPrDu4jxXRmntWaWsFp4WudawkHZkb9mQZjlsO8Kp9ZdTptHOMgvPTHsufbtNad0rRlvycMifVvYhoVPULZtWNYpqSQSRHuew+jI3g7v4HaPMHUq6DqJSwXwEY4ycuwdnl+yyaac9yDpvQelo6qFs0RyORB2tcNrXd4/Y71nqkujbWI09QGPI6qYhjs8mu+g7ZxNj3G+5XagIiICIiAiIgIiICIiAiIgIiICIiAufOmPWcyVDomZtaQy+4AXtnuucR5K8NZtJfJqWabYWMJH2jk32kLknSdSZZHPdmSboPmnYXlZ2jtFSTzx08VnSSvDGjcCdpPcBcnuBXjRVDWt2H2furT6BNCiSonrXt/wA0BBHcDJ8gxSEcCGYBykKC1NUNV4NHQCGEXJsZJD6cr7Zud+g2AKcREBERAXzJGHAtcA4EEEEXBB2gg7QvpEFH9L2q7YMMkQ7Au5o9VuQe3kLtI/wVcU8q6Y170X8poZmZ3DS9ttt2i5A5txDxXLE1M6N7mOyLSWnwQbFTzLoXUbTPyujjkJu9vzUnHGy2Z5jC77y5ip4SeCtzoQrzHLNTutaRolZ9pmTh4tLT9woLgREQEREBERAREQEREBERAREQEREFd9Nukuromxg2MjvytGf8QPgucpRmri6d63FPHEDkxguO83PuLVTs21B6jYulehrRXyfRUBtZ02Kpd39Yewf+2I/Jc1RxOfZrc3OIa3vc42HtIXYmj6RsMUcTcmxsbG3kxoaPYEGQiIgIiICIiD8IXL/Sbo35PXPG4k28DYHx2rqFUZ0/0FpGSgbbE+PZ/lQVjTTLb9StLdRVwSXsBI0O+w/sv/K4rQ4XqVpJUHXKKN1bruvpYJt8kTHn7RaMXtupJAREQEREBERAREQEREBERAREQc49K9V1mkJvquwfg7P8qrqY5rb9c58dVM7i9x8zf9Vp8npINl1Bouu0hRs/4iNx5RuEh9jCur1zd0OUmLSlOfU6x/8Acvb73rpFAREQEREBERAVZ9O1Hiog+3o39lrfqrMWn9K1Pj0fJ3XP5H/rZBy2wrOpZFGsKyoHIOmeh6s6zRkYvcxvkj/OXD2PC3VVZ0A1F6WpZ6swf+ONo/8AWrTQEREBERAREQEREBERAREQF8vdYE8BdfS8qn0HfZPuQcqaeN5H81rdu0p7WJgMji5wbZ1xc2BOdtnJQ4pn4tg45uaPegtHoPi//QB4QSH80Y/VX6uc+ijTUFLW9dO/AzqHxYwcTQXOY7MNBP0LZX2q7aLXTR8psyrivwccB/PZBPovxrgRcG4OYI2FfqAiIgIiIC1/XuPFRSjuHtIH6rYFCa5kfI5b78IHecbdntQcgtFl7xFeLtp5n3r7jKC7f6PEvbrW/Vp3e2cH3hXQqO/o8H5+r/5Uf8b/AN1eKAiIgIiICIiAiIgIiICIiAvl7bgjiLL6RBynpambLO+MgE2xm5IDQNriRsAuoAQiSQu2i+R42y2bgt66SoWU3WBotJKRGTwjYTYDmTnyHBajo+LIIMmJlgv10ll6SkNFyoOrrwdiDcNXdbaqkIMEzmt3sOcZ5sOXiLHvVz6l9IcNbaKUCGc5AX7Eh+oTsP1T4ErmBlaVK0Nf3oOwEVZ9Gev3XYaWqdeTZFKT6fBjz63A79hz9LeNYtPQ0URlmd3NaPSeeDR+uwIJConaxpe9wY1ou5ziA0AbSSdiqfW/priiLo6CL5Q8XHWyXbCD9VuTn/lHeVouvOtNTpF9pHFkIN2xMJwDgXeu7vPhZa2Ke3x7UGbprX3StSSZKyRjTnghPVNA4dixPiSv3VXS0slSwSSvcQH3xOc7EBG+17nj7lB1UjfRaMR4DdxzWTqvE4SSTEWEUT3E7rlpAHlfyQQbSvVhXy2NejWFBcf9HZvz9YeEcI83y/srxVL/ANHKH/Tn8eoZ5dcT/EPJXQgIiICIiAiIgIiICIiAiIgLHr6xkMUkshwsjY6Rx4NYCXHyCyFqXSZV4aRsY/rp4Ij3sdPH1g8W4ggovpSq3SSxl7cDnEvc298LjtbffY5KJoAs7X9/WMgn3Osedxc+9YGjXbEEfrDUm4YOZUIprSkQMjiT/g0C5PtAUbLB58O8528Apq4x16RSkFfC/Y2FxDWi5JAAG0k7AFUbVq9I6RwDcrdon1QN91sesmmZapwMkjpLNDLu29kW2DLv5lYMNI2kh6oWMhs6Rw3u9UHg29vM71it7RyzPxmg/HuDRmo6qkLtt2t3NHpOHfwHxms+Vnj7l4CnublBFPYTkBhadw/U7Stpq5oxT9VE3CH2xcbC23nYDldQtVKyPbmeCjqiskfs7Dfjegz3Qxt2uA5kLzLotz2+ahDa+ZxfHEqQpqXFuj5F4B9qCwOi3TnyKqJv83KGtdY5ODSfbZxI7wBvXRjHAgEG4IuCNhBXHbGOhPouaNr4zsLd7mHZlz8dy6V6KtLmooGBzsT4XGAniGgOYfwPYL9xQbgiIgIiICIiAiIgIiICIiAq76U57GHgyenJ5Ona0/xKxFUnTnLIyMBjXEyGIMIBIxMlxbfut8wgrLTEGOhDPpQudHbf824t9zVB6HmyC2eZwbVzRu7LJwKlo+23tjuOMH2rTWjqpnMOQvkgy9MQAytJF8QsBxduBO4Z+xYjqNnDLjnsb6TvvHIKVrIutiy9IdocwoplS47I99gL5XA7DeQzNuKzdamMKpgLT7ORyuL77LY9S6EDHVO+h2I/tkZnwB8z3KBJMhFxYNF7bSf3LiVtteOoijgBsWt7Vt7jm4+ZKsSvOomc9+VySbW33P6KSipg0YRu9Nw4+qPj3rC0feKLrn2L3nBEO47XfG7mperAY3CN2/eTvJ7yVURcwzUXpGvw9hmbj7Oa9NK12AWbm52wfqe5RkEDr4Rm85ud6vdz9yDy6vPPtv38Bz4cl5TRWPbNz6oyPjubyzPJZU04aMEfi4fyn+by4ryip7oMdsd9wHcPi5WRHTrMjpl7iBBjwOwixzbw4Hi3gfer16BoyKSbh1jGjmImX9haqMqcgukuinRhg0bDcWdKOvPJwAZ/dtYg29ERAREQEREBERAREQEREBRGtcOKlk4ts/8ACQT7LqXXxNEHNLXZhwLSO4ixQc16/wBObNmYO1Cb843bfI+wlahpgdcOvbYAW5k8u5WPrTAYnyRv2sLmG+9vG3Aix5FVi53UvdHtY7ZfcgydFVt17VcAF3DJpvc+pf0zzIFhzUJIDG+4U3o+tDhY+SliyviliaZWOcLYXNdlutYhnINbc81kuaaidsd7hzszwbtcRwNgUEWB2NuYz5tLr3PfuXlQTdWJpBk4MwNPe82v4WCSYWvvTOkBJMcOUbPm2AbMLciRzI8gFkMrZZbAFuW9wOfkVrTH52HJbHowBgxHY0X5ncPNVHhNo57ZQC4Pmk2Wvhjbx8B8ZrH0hM1nzMWYGT373O3i/v8AJZlTVGOMyE/PVGYPqRcRwvu/wUdQ0l0H5TU11LQUazaKg7lJNpQNthzQRbaZfMrLKXfAbZAnkCfcoPS1RgHxfyQferehjX10FKL4XuvIRfKJgxPz3XAwg8XBdVRsDQABYAWAGwAbAFVnQRqsYYH18zbSVAwxA7W04N792NwB5NYd6tVAREQEREBEXxNKGNLjsaC478gLnJB9oqf1p6Q9IRVB6tgjjabGNzLvtxJOfktu1M6QaatAY5zY5tmAmwcfq3393vQbkiIgIiICIiCqemvQ7mtFYwXblHNbduY8930T91UhPB1oPEbOK6/rKVkrHRyND2PaWOa7MOa4WII5Lm/X7UaXRk2JmJ9M4/NybS3+zkPrDjvAvxACvfqPyI2FednRn4sVsUtGyccHfGxRc1LJFk5uNntH7IPWm0gHCxyK9p2/NOI2Fw92SwGUrH+g/wADkVKUdO/A6J2eIdjuc3MAngcx4oIOAdoKeecTWM3PcAeWd/yh3mFFw0560DisrSLCMI+17mD9T5oP2WQzyl+45NHBgyaPLPxK2PRNBsyUToiDYtz0cAAgkdGt6rtNY0HYD2iRxsSclmT6ee1tgGt7xiHK2eQAJAG65O3NRtRWgBa5pXS4F81m8ytTqxmaa1ifb6Iywgi4IHO/x4m/j0caoP0tVY5QfkkLgZXZgSO2iJp3k7XW2DgSFi6map1GmJ7NvHTsdaWa2Q34Ges8jyvc7gek9CaJhpIWQQMDI2CwA9pJ3km5J3kqySJbb7ZjGAAAAAAWAGQAGwAbl9IiqCIiAiIgL4niD2uadjgWnxFl9ogrbWvR9/m6hljmGSi5ve57Lj49g7LcLFUb8kwytcwPe8vcA2JwDnYPTwuINrXFsjtXWtXSslYWSND2uyLXC4+O9ab/AJK9HBwc1sjQ1/WNYH5BxADrOILswG3GL6I3hY55xvrry+JvUzTAqaaN2PG8NDXglvWAjZ1rQThfa19172ysp1V9pfo4OLrKOoMbh6LZS44e5k7CJG+OJRL9K6eof87C6ojH0sPygW7nRYZRzc0rbC10VZaP6XoycE9K5rxkRE9jyO9zJercOVitjpOkPRr9tR1J39cySID772hp8Cg2pFhUOlqeYXhnilB3xyMePylZqAvGspI5mOjlYHscLOa4XBHJeyIKf1n6IXNcZKBwLdvUyGzh3MkOR5OtzWk12h62A4ZqKdwG0iMuA5OGR8CulkQc1Qap/KPRpJXE8GPB8TYEeK3LQHQwxzMVS98F9kTHkuA+s7FhB7hfmrjUJrppR9LQ1E8TcT2RktHfsHvQc3dJuioaSv6ijkdJhDRa+J4kyyJ+k691gaWo6hhaJYjiALy9ouzBZocS4ZCxDfgi+w6jaDe9xrqi7nvJczFtz2vN+Owd2fBReuusHXu6mI/NMOZGyR497Ru4nPggxaCfCpUaUsNq1GKoLe9br0basyaTqMOHBTx2M0md7bmM+u72C54AhFVek3OsG3JJwgDMknYABtPct11L6JKiqLZtIYqeHJwh2TyDg7/ZDn2tuTdquHQOqdFR509OxjrW6w3dJbeOsdcgdwNlNoMbR1BFTxthhjbFGwWaxosAP3333lZKIgIiICIiAiIgIiICIiAiIgw9I6Kp6gYZ4I5hwkY14/MFrlX0baOfm2J8B/sZZGNH/TuWflW3ogrKu6H4nXwVTjw6+GGUD8IYfasL/JbWx5RVsfdg+Uwf+OVytpEFQjUzTsfoVWLh/wDfqz+WSMgL8doXWRuyd/hUQO9skSt9EFMvo9ah6L5T9/R594XkafW7c5/4tH/srrRBSXyDW939aRzfRj+Fq+J9WdapWlr6oYTkQZYxl91ivBEHM2l9F6ZpYpWVOIMc4RmZ724ALG4je63pbMuBUXofo/0hVRiWnhEkZJAeHx4SRkbEnOxyy4FW3rHB/wDO13yNhIo6Ql08zLXdKQQI2Osc9vgHHe1WXQUccMbIomhkcbQxrRsDQLAIOcKPod0q9zQ6OOJpNi90jCGjecLSSeS6A1W1ehoKZlNALNbm5x9KR59J7jvJPkLAZAKWRAREQEREBERAREQEREBERAREQEREBERAREQEREBERAWs676SlbEKemF6if5tm7CDtcTuyvnuAJ3LZlhU1ABI6V2bzkD6re743IMPVLV6OgpmwR5n05H2sZZXWxvPkABuAA3KZREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREH//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhMSExMWFhUWFhoYGBMYFRcVFhcXFRgaGBcXGhUYHSggGBolHhUZITEhJSkrLi4uGh8zODMtNygtLisBCgoKDg0OFQ8PFTcdFR0tLSsrLS01LS0tLSsrLSsrKysrLS0uKystKystKysrKy0tOC0rLSstKysrNys4LS0rN//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgIDBAUHCAH/xABFEAABAgMEBQkFBAkDBQAAAAABAAIDESEEEjFBBQZRYXEHEyKBkaGxwfAyQlJi0RQjguEkQ1NykqKywvEzNXN0g6Oz0v/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABoRAQEBAAMBAAAAAAAAAAAAAAABEQIhMRL/2gAMAwEAAhEDEQA/AO4oiICIiAiIgIiICIiAiK3aI7WNL3uDWgTLnEAAbSTgguIodb+UmwwzJpiRZZsZ0e15E+pYjOVSxnGHGHEN8Q4oJ4ih0HlHsRxvjqafBy2dl1wsUTCMAfmBb3ykg3yK1Z7Qx4mxzXDa0hw7QrqAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIMPS2kodnhOjRTJrR1k5NAzJXCNdNc4lpeTEMmg9CAD0W7Cfidv7JBbDlU1u52LzcMzYwlrBkXYOib9g3cSudNh+86pUVXaNMPyAHGqqgaRcRMgEHMCRHUVrLRUq7YHgTaepQbUumLzT6+qyrPEdtWtabp3Z/VZ1miyp2IreaO0rHguD4cRzSMwfUxuXV9SddhapQY0mR5UODYksZbHbusbByGyx2zE8OxZsrjgQSHAhzXCYIIqCDjMKpj0Ii0Wp+nftcAOMucZ0Yg+bJwGwivaMlvVUEREBERAREQEREBERAREQEREBERAREQFG9f9M/ZrI8gye/oNOyYJc7qaDXbJSRcR5cdM3oogNPsANlvdJz+64EHOHRTFe6IcMGjYBh3KzaY2QVx5utAHrasJyyqglTrk15PHaQdz0abLKx0iRR0ZwxY05N2u6hWZbHNVdBPttqhWZkxfPScPcYKvd1DDfIZr1Po2ww4EJkGE0Nhw2hrWjIDxO/NUc75QuTeE+GY9ihhkRgm6CwSbEaBW60Ua/h7XGq41Dd63Fesl5/5WNXxZbbzjBKFaJvbsD5/eN7SHfi3JREYNqkZLeQLRehXs2kA1yO7sUWj0dPaO8U8p9a3GrziXOZJxvtIk0AuMqyr202LPLqa1x7uJvyfac5i1sBPQiyhu2dI9B3U6XUSu2LzGxrgS00IJB3EUK9EasaR+0WWBGOLmC9++3ov/mBWozW0REVQREQEREBERAREQEREBERAREQEREHx7gAScBUngvMGt1rMe1uinAlzuF43pdUwOpeitbLTzdjtDs+bLRxf0R3uXnW32Tnc5GZIOOOUlKsaK0PqrBW0OgXftP5fzW01W1YbGtcKDEJeHPZeAm0XS43hSvstOaDofIJoMNhRra4ViHmoZ+Rhm8ji6n4F1lWbHZIcJjYUNgYxgDWsaJNaBgAFeVQWr1i1fs9thczaGXmzmCCWua4YOa4VB8cDRbREHlvWTRnMWmPArKFFc0E4lpq0nfdDe1UaPbdcHSBlk4TB3EZhSflcgc3pOMZf6kOHEl1XD/6yovZrX8p7FlqNuxhcS4ymcZCQnmZCgniut8lVonZ4kI/q4kxubEE/FrlyOy29uw9i6JyW6SYY8SGDV8OctpY4eTyrErpyIiqCIiAiIgIiICIiAiIgIiICIiAiIgiXKfaLthcPje1vZN/9i402HnhsFCptyxayERIdlZDnzb2X3l0pGKAAA2VZBzazzUSYOCixYu4VxMhTPtUq5M7F+nhxrda5+FKMEP+/vUfuYUFN/5Keck9mD3xrQ1w6E4DmSMw/oPnPAtLZdc0HSkRFUEREHJOWvRIbEg20RJPLRAEO4D7JiPvlxMpdIiV0rmzLJHkCIlJZtaf7gurcur5WezSx51x7GEeagNmaDBhE7WzP4pKLGrYLSPehnjD+kRbzVTS8WzWmHHiMa9rJzbDa5rjeaW4l5GeEq7llCxQSf8AVpIVLccZ8MAqX2VjXNuvDpznIASoDtPoLM5Sr8u8WeMHsa9vsuaHDg4THiri1mrDp2Sz/wDE0dgl5LZrbIiIgIiICIiAiIgIiICIiAiIgIiIOBcpLHP0haQBMiLCMqYMEInHc0rXtiH4Xdx8CsjX/SkI6StPNODwXDpNM2zbDa1wnmQ4EcVF7TpFxF0GXBRW9iaUhNxdUZSM1vuT7X2zWFtoZFZFcY0cxQ5jWkBpYxoBvOBn0ThtXNLy+FyD0roblB0daSGtjhjzQMigwyTsBd0SdwKlK8gc4plqfyi2yxNLJ89BDZCHEJ6B924/ECeLcJYSxTUd41h1hs1ih85aIgYD7LcXvIya0VJ8M1xrWblgtcUltlaLOzJxAiRjvmei3gAeKhWmtLx7ZFdGjvL3nM0a1vwgYNaPUysWFZyTdbU5nZ9PXBFZUbS8eOSbTHiRScBEe5wG2TSZN6gFJ7E0GCwHYD3zCi72Q4QEzNxwAq48N29I2krQ8SbKEwCWMqDa76SQSy4PiI7Por8FgBnOfYoRAY2fTiRHH5Wn+p0pqQaGtzYTg5kR4lQtjQhFhOBpJ7WmcjxG45oO7am6QhPs0JjHAvYwBzcHA7ZHEbxRb5cFdp42aNDiNJZCeehEDr4hOzbznvwz81cQ6crx7Jq3pptqhXqB7aPaMAZTDh8pFR1jEFVG2REQEREBERAREQEREBERAREQFyzlY1zez9BszpPdSI8G77X6sO90Sq52QptXQNZNKCzWaLGPutMv3suO3qXl7SFpfGjucTMzMzOfSdieqv8ACpR9tTWMPQN4ASD5EXzm8N91mTRjIAmpphhyu2x9ZbKDwWMCoq7JWI0UDNVxyZS24/RYjmILsElxkP8ACzA2fRA4K3ZIN1tcXdwyHmsuEwATNZgEjaD7LOLsTuG9B9hQcGsqTUf/AGd2wdeayXG591CF55qXHDe5x2eKqqwAAXosQ4ccBuGPAAlHt5sc2wze6r4n02bAMggxubDSQOnEPtPPruH5i5Cs86urLE4y+nrevty6ABnnxkZ93qiyoIuwxteSTwHXtn9UHyCwAyArt35dtfWOVDcJim2WUpypTCdN3a1fIbQIZJzMhlQeGPdlkDaHM55dmw1O47qyDIs7xJzHCbHiT2YNeJYge7EGIIphtUn5NdKus1qFne680FrA4+/AjH7h3Fr5M3BzlEXCYInWdCKVxA2tdM4ZzEqmTcqyxy4wYjT0gXQicCOcBc2m6LDmJfEqPSCKxYrQIkOHEGD2NcPxAHzV9VBERAREQEREBERAREQEREHOOWXSF2DDhTxm93BuHgR1rhmjwaOO1zj3AeJXUuWaPONFHwQQP46+ZXMbCJNH7nfeeFFYtoNVQzFVRsVSzFQfXKmFDm4DLE8AqirtnbRx6vM+SC81s3TOAqZbBl1zA61mwGzcS7Bkyd7zjLhRoWPZ6Nn18btG/wAxn+FX3wZiHABlfM3O2NkS53YHHiWoLkB8mutDhNz+jDb8ppMD5iP4W71jRDdGM3EzLtpoZ8DhwWRbIgc85Nhi6BkDIDuEmrXOfeM5dVcOG0et4X3Ry4zNfp9R63ZAvE+qfT1vVmHDAEya+OGWYw9VWfZI0O45pYS4+y7H8Pn+VEFRiHoiUpUG4zz475+E7wEiJbJcCRMyx/hrhu6WNCJGHZ5fl4e7ks4U8O6on1gy3XaKx5YymJCeInVs50yma+0VbsMSr2zwiQnCs/1sM45iU67+CujPxGMwKbpyFMiNwrjWN33rxPF0P+tuE6jHx3yD0Rqkf0Kyf8EMdjAFtlrdWYZbY7K04iBDB43BNbJVBERAREQEREBERAREQEREHC+VwONqtYEgBDhEnEkSwGzCpPnTn1iHRb+5/S4n+8Lp3KxAlbojf2tlB62uLfALl1kf0RuddP4h9YfeoqxHFVRDxWRamyKxwoPhWW0SY3fM9/5LEiFbGGJtYNrQguBpm1obOowI9ymZHvOJVyyRv9aORKQuNE50o4+ENvWUa7E7GU4vmfFytNP3MJvxuvdri7waxBaj9FoacTjvOJx2k9ypszf8+a+Wyp4ZYdhVyA3okzw86YBBcFThTIV7D9fznsGwGtGM3bBgMDXf6rNYujpXhPKZ24DvGfqmygxAGykZmeWM8MfXegptEOQlMEHA5GW/Lj44GiHFaCGnb1gmn5bD2l320C6AMwOIruzFfHiMWyiZJzPRGY2SO0eRyqQGya2frPE7SBSeZGIvD2adF2N7o4aMYjwBuNQ3A/Fd24jcTfdo17YTY99lw+yHlzIjwHAXmMAdMTcKkjr6MpBya2DnrcxxHRhC8afDIgcQ8wz28Sll8Wyz12yGwNAaMAABwCqRFpkREQEREBERAREQEREBERBzDlrskhY7UMGvdCfwit6JO4Fp7Vxe5divZ8VW8Zgt7wB1lenNdNCfbLFHs3vPZNhOURhvQzwvAT3TXmW2tcWh5BD2GT2nEEGTgd4KlVTFIcLywnLNa4EE/FXgfeHn1nYsaKxQW8aLaWczhM2gf0krUTWfYHzaW5gzHA4+HegyIr+jE/D3AHyQfqW7GDua0K1EweNv0kvkGJN0M/Kg+OBdXLbl69cbsEHDPx9eXadEkJZTnTzHrEqnP1ifA4epILsPb/j8vXXnvtrnCW/ZKRHDA8Kd08djaV7fr6/L6HiWFdm7j4eWQfYsSQvHs8Tx9fvXbA8NuukHDGRnI7ZjGm7ZuAdjxDMV7fPyy6q3bAsoyJG+cpS/wdmGVbob7SFvMQl7sgAAPZa1oMmtaMBjn5rq/JLoTmbM+O4G/HdOpJ6DKCQyrewxAaVyfUrQz7XaGQQTdmC53wsbi7slTaGg4iXo+zwWsa1jRJrQGtAwAAkArJhbb6uIiKoIiICIiAiIgIiICIiAiIgLiXKvqz9mtJtjGzgWg/etAoyKRU8HCvG9tC7asbSVghx4T4MVt5jxIjzGwg1B3IPJ9ps/NOLT7DqtduyI3j1iqYgyOPcRtG5TjXHVB9kcYUQF0EkmFGAw3bjtHlhBorSw3ImHuuHiPoorHiMXyBEuuB7d4OKvxDLGu8fTJWzCngoM+OKNfiCZT7x4FYMF5aW/K6XZRZej4JcHwT746NRSI2reAOB4rGcwnKpoRmHtpLdMDtCDKiNrLGs+zYq7OJmfb+ff371TZ3X292/crzGy37/XrzC9EMh3et2Pqatk17vy9d/vUOds6vWzDu+VVQ4RO7js9d272QqaZkeVfU6d2NL31wLiGNrM1IznUSkZypl9F9e8NoMT9a8BiZnfPMLrPJfqIYd22WpvTxhQiPZzD3A4HYDUYmsg2iRcnOq32Oz3nj76IAXzxaMmfXfTBoUuRFUEREBERAREQEREBERAREQEREBERBj2+xQ4zDDitDmHEHxGw7wuVa28lDjN1mdeHwGV4dWDuqRXXUQeSbdoeJCivhRWuDmGRIB3HAjes7R+jLwk1zz/ANu8RPJSfXUkaQtW3nHDtukdymvIpDPN2kuFbzJHqdmoqL6talWmIehBeGkSMSMebhyOMoYHS7OsLI125M4sEC0QPvxL76HdukkVL2taZy4GYxrUjtiJiPJ1raLxexpaDjW8J5zkJjiZjac1XCtBlMtJ+YV7xQqVa9vZGt9oiQwGta4s6AADjD6LnmQqS6dcwAr+oeqLbfEihzi0Q2gl4Y0m8TRpnjMAmc8kVE+fHwnul4+u1XrDYrTaXiFAhuc45NEzKdDldFPaMuOZ7To/krsLDN5iRDsLgwf+MA96l+jdGwYDLkGEyG3YxobM7TLE7ymCD6icmsOzER7TKJGxDcWMORPxuHCQymQHLoaIqgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg5Jy02IMiwI7WydEa5ryAa82W3SZDGTyJ7ANinOoFhbCsMCTZOiMD3HMlwnM9Uh1LT8r1mY6yQnOaC4RmtacwHg3h13R2Ka2WA1jGsaA1rWhoaMAAJAILqIrVqfdY914Nk0m8RMNkJzIzAxQedI8L9KjwYX3koz4bJdIvHOOa3rNF2vUHV02Ozlr5c7EdffKoFJNZPOQHaSoLyR6svdGNuiCbGXhDJlMxPZc6VaAF1RKpXX1FERFUEREBERAREQEREBERAREQEREBERAREQEREBERBCeUzp/YYP7S1Mpwp/eFNlCdZPvdL6Pg/s2vinrw74Q7VNkBRTlM0kYNhe1vtxiITQMTeq7+UEdYUrUD01+l6Ys9nxZZW868fNRwn1812lBKtXNGCzWaDAzYwB29xq89biVskRAREQEREBERAREQEREBERAREQEREBERAREQEREBERBC3/wC+N/6XzKmiIgKDasf7vpDgPEIiCcoiICIiAiIgIiICIiAiIgIiICIiD//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhIVFhIVFRUXFxUYFRUXFxcYFhUWFxUWGBUYHSggGBolGxUVITEhJSkrLi4uFyAzODMtNygtLisBCgoKDQ0ODw0NDzcZFRkrNysrKys3NzctKystLSstKysrKystKysrKysrLSsrKysrKysrKysrKysrKysrKysrK//AABEIAQEAxAMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAABAMFBgIBB//EAD8QAAECAwUFBgQDBwMFAAAAAAEAAgMEEQUhMUFREmFxkfAGEyKBobEywdHhQlLxFDNicoKSogcjQySys7TC/8QAFgEBAQEAAAAAAAAAAAAAAAAAAAEC/8QAFhEBAQEAAAAAAAAAAAAAAAAAABEB/9oADAMBAAIRAxEAPwD7ihCEAhCEAhCjiRKcUHRdRRRI4GJVZaVqNYLzjdvO4DM7gq3uosW95MNv5RTbI3nBvAV8kVcR7WY3EgcSlxbzMjXgClYUrDZ8LRXU+I7rzVSOiFQNw7bhnEgcbvdPQ5lrs1Ruja+vzUB2Re2rTqMM8Rhry5iNQ4nK9IxrTa00djoUjK2k5lz72/mGHn+VPzcrDjtFQDTA5jrRCIRbcPcp4NpQ3YEKpdZbB4S0cMj1X1KjfZbThUHUXIRpmvrgaroO1WVa2LDva7aGhx5qzkLYa7wuuOYOIQi5Qomv8wpVUCEIQCEIQCEIQCEIQCEIQcRH0VFato7Io0Fz3GgaKVJOAFfPcAmbUnQ0FxNAAeSr7Olz++iD/cd8IP4G6CuZzPvRFEnIbJ24hDop47LBo3657sEy93XDor17krGiqD2JE+aWizNFBFjKNkMk8vqfWiK6dMnrio/2gq9kLBzibjT6q3gyMNuDG8qnmiVjGTVOuuuJT9nz+wbvh00+3WC075dhFCxpGhaEhM2FCde0bB1bcPNuCpTJpEbUeSULdUvKCJAdsP8AhPwuHwk6bjuVlMM/EPNQpN8NJzcmHX4EYEZcOSsguS1FKWfPFru7fjlvGoVy19OHsqeZgVGmYOh1U9mTJPgdiPnmNyIt0KKE7LkpVUCEIQCEIQCEIQCXm4lBRMKqtSLQnrJBUv8A92NQ/BDvO92LRvpceJan3uSdltpDDs3+M/1eL2NPJezEaiivI8ZIRIleuaIsTr39FEHdccfQBFSsZ1x+yvrDlP8AkI/l+ZVTZ0sYrw0fCL3HQaeeC1zWgAAXAXAKpr1CEIgQhCDiNCDmlpFxSMtELSYb8RgdRkVYpWdltsVFzhgfkggis2TuyXJKihTf4XC/euzuNQo08ck4w2SHjLEDME/dNFyiiioIzogsdu4OTYKr3uDWU0Cdl/hbwCqakQhCIEIQgEIQgFTW4wgh2RFPMfb2Vyo48EPaWuwKDHyMzsN7pxvYLq5s/A7fdcTqDoo5iNXPoYc+q3puclRUseCdknZcDQjeCMOGBSbrMdlFu/iZfjXJwHpkFGi7n+/rnzNymkpd8R2ywX65DUnrIKws6wNuhc4lo3bINNADXXOi0srKtht2Wig91UqOzpJsJuyMcSdSmkIRAhCEAhCEAhCECc7Ih94udrrxVO8vhmjgfktIuIsIOFHCoRaqJePtKY3JeJK92/8AhOH04pt4uUWl4UMxHUyzVwAk7OPxDOtfKn2KdVZ0IQhAIQhAIQhALwleqKZdRpQVEyyt+t/NQy8HaeG6n0xPsmJhd2Qyr3O0FOf6KKtmilwXqEKoEIQgEIQgEIQgEIQgEIQgVtFlWV0IKghmoVg9tQRqKKrlzkcrkHUq6kQb6j5j2VmqiKaEHQg8lbhAIQhAIQhAIQhAJecNwCYSc4b/ACQV8cp6yG+AnVx9LlXx1bSDaQ28K87/AJqLphCEKoEIQgEIQgEIQgEIQgEIQgFWPFHuG+vMVVmq+eFHg6t9j90EMw1WEo6rG8KcrkhFTVmHwU0J+vzUU2hCFUCEIQCEIQCRmj4jwCeSEfE8UFfM4FXsJtABoAFRxsRxHur5FCEIRAhCEAhCEAhCEAhCEAhCEAkbSF7TxHXJPJO0x4W/zfIoFn4Kayz8Q3g8x9lA7BSWYfE7gPf7qLqyQhCqBCEIBCEIBZi2nxocN52j3hfFc1w2SO7Bq0HaGQIuotOqu2YO3QAi9kRpOhds0ryPJBjuzs3OzD/i2mMhUiAtYxzYznsfCcLhVvck1pmRmvoqobGkBL7ey4kvLamgAGywMFBlcM1YGMdUDyFX98dSuxMHVA6hLMmdVOx4OCDpCEIBCEIBCFG6MBmgkQlHzgUTp3egsFXW29wY0taXARIe0Gsc87BcGuIa0E3A1u0Xont466C7ZPDOiDE9se0JhwyZaOYbidlrnwiBtF2zsnvGGhrdgrTsQ+cLYZmgS7ZjiJEowNcREZ3NNkD8PeDAb1mv9S2j9madZo/+0vpFk/u/64v/AJXoHEIQgEIQgF4SuYsQNBJNAFTzs/WGH4AirRqDgTxF6BybtEAUbe7XIfUpKG+vHVVofrjn6fbnzaguQPNK8c9cByTnZnZCCd8xRcCb3rLz1sgHFKMtkaoNuyZTUKMsdLWoDmriVnK5oNRBjVUqp4Eeqs4ESo3oJVxEiAYr2I8AVKqJuaP6IGI83Xgq+NO771Xz07sg8vSufBY+0O0MSLEMGVZ3kXMkhsOHWl8R+Avpdeb0GumbYa2+o5+f1Cms9r47Q4ODWHAkVJ30GAwWdsvsmw0fOPM1Ex2L2y43d0P3n9deAVjCm4sqwihcGk7JFDVpNwIyIwupgFYLKckpiG4DahFrjTaJc2hoSBShyrS/UKBznNN8aHjgA4+9OuCrDbkSZZV5oQ4bLQKAUoS5xoL6VAG9euG0UgobdtD9rEKVoQf2kRO8vLXQ++7ygpU7ZvaG0vJGC+l2LPDYAJbQ7Tqh1aFzi4tPAkjyWNfYcN7g+jmvH42O2XYEUNxBxN5Fb8VbSciGNDWijWigvJ5k5pBr4Ew14Baag4fpqpVmZeW2XF7ahzqVORphUG7zxVzIzBPhdjlvSB1CEKBGbG28Q7i0CrgcDXI7lUWq+sUN0qfRWkq+sWJy5KinYv8A1PkfZUQh9+7r5H1P9TkJ3Xv59b1Wtdf11j76m5yWdhw63ZHkVBYF1ywfb63zCIhsFXurjgAKCp5rcVXyf/UBv/V3/kHu5BnIs/GJqXb8OuiiFaj2nxX8PouT17/fz3Lgs666/wAVRoLOtWt4K1NnWjhfovmjatNR57/v9slorKnagEIPqFnztc1ey0ZYCyp3C9auUmPDXT3UFjPzdTw6qs9aE8ADfrprvXU/N46/rfSuoyWJ7TWs8kQYRJixTstF9wOLr9KIPJ+diTUYwIB2WtvixfyjDZG9a/s32eaxgaxtGC8ak5vcc3mpv0wzqr2PsBrWtY29rb3Ozc6t5PMrcTD2wmcFUVs1swws/NTO0cUWnaBe5KQhVUTQYSsZeCoYDE9CCCaExNMaoWKdhQSsCmAUTVOCmh2C+orz4oSsOLs1G/5BCypWWdSNEG8rPW2/ZjtOpV7HOzMH+IBUHa1mDtCqhaI/xdb/AK+vFPSkTrl9uQxpRU74tQDwOKakovPrr1wuUVoGFfPv9RpGsSHEpiHNPo4fMLewXXdddcqbtbJd5BJGLSHDyKD5LFlsx1TXXD14rgNPXXXktI+RFKgcMrrqcLu7/typRtbMy1OHXtT0QVpZ111yClkH7DqZH0663yiH11plx4UIkHPS/rr7Bp7OjLbk92wNOIF/8x+eSxnY6F3kVpPwsBiHyI2f8i3ktRaMfrAncCbhwO5UVVrzmyDU0xqNKC833VwN29Z/spLGLEdNEXvJZCGjAaFw4pftNHMQtgMPijPDLgQAMXu0uFTXetv2RkBtANHghgNb5Jg2NjyohQxwqs92jtOpLQVdW1OiGym5fPpqY2nKokY6pVjLNSEu1WUBA7CCbhpWEmoaBhpUzCoGFTsQTsKnal2JhqDlwqUJmWh1BO/6IWRW9oRsuY/yVXb8Pbhnmr7tFB2oLqYtoeSooMTbha3K4rKyz6tppUfT3KYlovXWmmISZ8MRzfMLsOv68uO4ZXJo1UjFqOuXX3TExDDmkHAiiprPjdY+dcfI5DermG6vXVVBkYklSoIwqDwvv3Cm0f6BfdVlXaMlQYfrU3eRDhurlgtjOS9HVAxv3ZZ76ADicMVXTssCMqZb8BX/ALP78rgQwgh5b/09+rwpBB6+/XzT0zBo/cf164DDLruufzy+vW0gvexcp3cu95xiPNMvCyoA/uL79wXlqx7j9K8/zeXyVo9ndQmQx+FobhnS80zqb6alZHtHPBjHOyaD7YA/IYcaq4K6yP8AcmIsY4QwITL/AMTqF55U8yV9X7NS4hwqnFfOuysgWtgwj8X7x/8AM87R5VA8l9GnI/dwvL5Kih7T2hUkVWfgmpXloTG08rqXCIsZcKwgpGAnoSByGmWFKwimWIGWFTsS7EwxAwxTAqFima2pA1Ppmgelm0aOsb0KVCyriKzaBBwIosRIHYe+EcWuK3SxXaiH3Uy2IPheL+IxVwZ3tBD2IgeFBXTquCt7dgd5DqMVn5KJVtDiLvoqLOSjU4V343U8XIeS0EpGrp5EHgSRw9VlGOoa59UuwOKtpKPxuu+Gmg+qgv4sMOG8YbkpGhVB0pThiKeQI/t8zNAjceR3qaIyt48x1gVBibYlzUnMH2JDvUfovLNg7USGMtoHdQeKmmAPPAK4taBWvLClcA435HwnzpuSVjMo4E5Nd6eG7XHC/wAkDVqxsesct3/1XesPbQ72NCg5OibTv5IfidwwoRv1w1NpxcfP0F4+tfhrpRZWT8UeNEP4GNhN4v8AE/0Df7vJXBtOysLaeYhTfaacoNlddn2bEGu5Z63ZracVUV4dUqwlgq6ArSXCB+CnYSThJuGgbhpmGlYaahoGYaYhpeGmYaBiGm5JtSTpdzx+SVYrKWZRo1N54lTdEqEIUUKk7WyHey7qDxM8Q+au14RW5B82s6ZD27J4Kjm4PdRf4XK2tqVMrMlv4HXtPFdTssI0Oo+IBawV8RvW+4L2DEp6YVOfFcyZLgWH425agfMXriKM7vXrNQXctNDcLziXA41wN2BKtoMzhj8zfSoAxH1WOhTRacQPM5443J+WnqXemZAuFRvF1yDRTey4XgHH2+/lVU7ILWFwBxBuu3Ya+a7M8DmL866Z76E0rriKVS/f+KmtRlyPmQOJ4EwUtqRMTWnnoflvvrdheKaxm+BpziRXvPAO2G+jBzTtrxKV3B3tdjhr5jK8R2WyjoTfysYPQErQ2UxGDIVNyxk1Fq4q7tua8NFmQ+pRFhLBWkBVksVZwED8JNw0nCKbhIG4aZhlKw0xDKByGmYSUhpyCEDctDqQMsTwVolpKHQVzPtl1vTKyoQhCAQhCCi7XWN+0QTT94y9vzCw1jThadh2INCOC+rLHdr+ze0f2iCKOHxtArUVvIGZ81cFRatlVAjQsRfd1vVZtiJui5tydvGh91Y2ZajmEA+NrssyAfjZXE3+Jhv0vuc3aFkw47e9guBrW8ajEHMEHI0IzVRlosM5V0I0yAKWc8t4eh/KfmrCbgRWXPaTT8WfNIRIo3ex+ikUCdI9Mf8AEnyqh07ocKX6EYHdnflW5LRHN9/XH6JaJFaM/Q+aQM2lED27YpeDUaHE7gDUHgcjj7AfSL5D2CrjOAVpU1xFDQ8d95v3nzZc6uxEAIDm4HEFp2SDTgqGbVmKqthOUs0aqCGiLWWKtIBVPLOVnAcgtIJTcMqvgvTcN6B2GU1DKRhuTkJA7CCtJKBtHcMfok5KAXGgV/BhBooFBIEIQooQhCAQhCAQhCDN232WbEJfCox5NS0/A4jMgXh15vCzToMeXcS5ha4jZ2vDUgfD4/hfSpptUOWdF9JXjmgihFRoUHz6FbAIpGDa6hrmg6XEm/W+miWmYcu/JbmPYUB3/GB/LVvoLkjE7Iy5/MOGz9FaMBHkYGqr4sGDSovGRX0sdjJb+P8AuH0TUv2VlWX90HH+K9KPkkCRfFdswITnncK04nILSnsLHZKue8gxA7a7pt+yKUd4szcDQaZr6ZBgNYKMaGjQAAcgpEo+CTEqRilBCX2S2+ysONVzKNcbyKeEnXcVjLR7JxWfgNNReOYSjLwVYQSpDZTx+FSwpF2itRLCcm4Tl5LWc84NJV3I9nYpxbQam5KE4AV3Zsg52V2qs5GwWMvedo6ZfdW7GgCgFBopuqilpcMFBjmVMhCgEIQgEIQgEIQgEIQgEIQgF4UIUAvUIVAhCEAvChCCtn0nBxXqFUXEvgFKV6hRXi9QhAIQhAIQhAIQhB//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMQEhASEBAVEBUXFhIVFhgVFRUVERAVFRUXFhUSExUYHSggGBolGxcXITIhJikrLi4uGR8zODMsNyotLisBCgoKDQ0NDg0NDysZFRk3Ky0rKzctKysrKysrKysrLSsrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAAcBAAAAAAAAAAAAAAAAAgMEBQYHCAH/xABAEAACAgADBgQBCgMGBwEAAAAAAQIDBBEhBQYSMUFRBxNhcYEUIiMyQlJikaGxcpLwFVPB0eHxNENjc4KioyT/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/AN4gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABR7W2rThK5XYm2NNa5yk8s30jFc5SfRLNsxjfzxCo2YnXHK/EtZqtPKNaa0ndL7K7Lm/bNrn7ePeS/G2+dirXbPVRXKupP7NUOUVy9Xks23qBs7ebxmm24bPpUI8vNvWcpesKk9PeT94mA43fPaFz4p7RxKf/TsdMf5auFGI2YpshjiGBtjdLxZxWFahjc8ZV97RYitektFZ7S1/F0N17B27h8dUrsLarYcnlpKD58M4vWMvRnJsJcSRcthbavwNquwtjqnon1hZFfYsjylH9ujT1A6xBiG4e/lG1IcOlOIis51N811sqf2ofquvRvLwAAAAAAAAAAAAAAAAAAAAAAAAAAAGsPEzxLWF48LgZKV+qst0cMN3jHpKz9I9c3oUnip4keT5mDwM8prON10XrV3qqf3+8l9XkvnZ8OicTiM+QE3GY5ycm5OTbblKTcpSb1cpSerb7soJTzPGEgPBkRqJku7G5WIx0LL0lRhqoznZiLE/LjGCbmoLnZJJPRad2gKDZ0Pmr2/cq5UnmCjklply+HoV0YZlRQ4e6dM4W1TlXODUoSi8pQkuq/bs02nodHeG+9T2nhPMsSjdXLy7VHSLkkmpxXRSTTy6PNa5HPN1JtPwAzX9orp/+Vrtm/Oz/ZEVt4AAAAAAAAAAAAAAAAAAAAAAAA1h4seIXyVSweEn9O19LYn/AMPFr6sX/etP/wAU8+bRePE7fhbNp8upp4m2L4Fo1TDk75r3zUU+bXZM5pxuKc3JtuTbcm225Sk3m5Sb1bbbeYEGJv4imPSJRAhUSNRJkYdln0WWrbfJJdWb18LPC1UeXjNoQTt0lVTLVUdVO1dbOqXKPvyCx+G3hJK/gxW0ouFWjhQ81Zb2ld1hD8PN9clo8x8ZNpxwmz4YSlRr85qtRglFQprylPhitFH6kMu0zY5zh4sbyLGbQshB510pUw7SlGTds17y09VBMDF6GXCottLLhQyomzgbe8EcDwYXEWtZeZdkvWNcIrP+ZzXwNRyeh0Vuhsv5Jg8NS1lKME5/9yfz7P8A2kyKvAAAAAAAAAAAAAAAAAAAAAAWXe7eOrZuGniLdX9WuGeUrrGnwwX5Nt9Em+hd7rYwjKc5KMYpyk28oxilm230SRzL4kb4y2liXOLaphnGiL0aj9q2S+9PJP0SiuaeYY9vDtm3F3WXXz47JvOT5RXaEF0ilkkuy6lnImRRiBDGJMSyJsKvgTacb8mnCyDysg1KDcYy4ZLlLhkms09VmtHk+gG7fCPw3+TqGOx0PpnrTVJf8Onysmv7x9F9n35bZOTcRvntS/We0MRBfhtlW38K2kTI70Y7y5VSx+JshL6yndZJv0zbzS9OT6gbn8S/ESvC124bB2KeJknGUoPOOFT0bcuXmZZ5R6PV9E+f763o10KmtdOROUAiVhZ8SzX+xcaWUHyJp5weXo+TKyiNnWCXrxafsBl3h/sj5XjaINZwg/Ns7cNbTSfvLhWXZs6BMX8Pt2o4DDR4o/T2qMrm+afONfoo55e+b6mUBQAAAAAAAAAAAAAAAAAAACxb6bxw2bhLMRLKUvq1Rf8AzLZZ8EfbRt9lFsDXnjdvfkv7Ppl0jLEtPVJ6wo+OkpenCtVJmj7ZcTKvaWLnbOc7JuycpOU5PnOUnnKT+PQpEgPFErcNhW+mv7HmEozef5GRYahQWoRZNoRVEOJ6yekV3ff4Fuopy+dLWT19vQqdr3+biMvswSXx5v8AX9iDMCIiRAidXW3qFTKyspLcrMpZJZ9ytw9ifIIrYwyMm3C2esRjsLXJZxUvMl7VpzSfo2or4mOVMzjwiy/tBf8AZty/OH+GZRu4AEUAAAAAAAAAAAAAAAAAAA518Xt6vluLlXXLOnDuVcMuU7M8rbPXVcK9Itr6xtvxR3l+QYKbrlldb9FVlzi5L51q/hjm/fhXU5mu6JcloBJZHVDNniROqWQFZhWk1/XL/XInYrHdigdmRIslmEU9Us7JvuypKSDym/gyrA9RcL1wrTpoi3ouTlxRT/rPsBRQra+IUnF+36i25a5rJ9iWuSzAvlE80mZV4d7QjRtHCym8oycqm/WyLjD/AN3FGHYN/Nj7E+ybSbi+GS1TXOLXJr4lHVYKbZmK86mm1crK65/zxUv8SpIoAAAAAAAAAAAAAAAAAYx4j7wfIMBdbF5Wz+ip7+ZYmlJfwxUp/wDiBpbxW3j+W46zglnVRxUV9m0/pbF7zWXqoRZgjJ1jyySJUaJSfzNX2fJ/5MD2KImyGqxP0a5p81/Xcn4nCTjXXc4tV2SthCXSUqlBzy9vMjr79mBIkyWz3M8AkXrJqXwfs/6/Uqq3miCUc1kyVRLhfC/913AqkTqbXH2JR6gJ82mQxqzfoeRJsGEVdbyF9vDGT7Jv8kSoyKnZOAeMxWFwkdfOthGWXNVJ8VsvhBSKOmt16HXgsFB844fDxfvGuKf7F0PEstEekUAAAAAAAAAAAAAACXiL41wnOclCMYylKT0UYxWbk32SQEnae0asNVO6+xVVwWcpS5LokurbeiS1beSOd/EffSW1bYqEHVRVxOqL+vNvJSss6J5aJLkm9XmN/t8Z7Vv+a3DDVt+TB6Z9POsX32v5U8urbxqcdNOa/Xugi2tkUHlyIroZark+X+RKzCqnDYWV9tddceKyco1wXeU5KMVn2zaN4+I25UYbErpoWcsGo2ppa2JJ/KJP1alOfujTG7+154PEU4mpRlOuTaU1xReacWmvZvVao6N3J31w+1a2o5V3JfS0Tacork3F/wDMh65dVmk9AOWkyNGU+JW6Etl4uUYxfyexynRLXJR+1U396LeXquF9WYtEI9yIbKuL0fR9iakRJAU1V2T4ZaP9H7FVE8lUmsms0SnhZL6k8vR6r8wKhEaZR52rpF/E84bZc5KPtzAqcRi1D1fRLmzbngHutLO3aV61knVRn2z+knH0zXAvaZgnh3uRLaOIUUpKqDTvt+7H+7g/vy6dlm+mT6dweFhTXCqqChCEYxhFaRjGKySXwCpwAAAAAAAAAAAAAAABq7xx3p8imOBqf0l64re8aM8uF/xtNe0Z+htE5P3w248djcTic84zm1X6VR+bWl2+ak36tgUUJnsrSjVp5KwImzlz7Pn6eqJUokPEFL8v2IIIzyZcNn46dVkLabJVWQfFCcXlKL/rTLk02noUVleZTxk4vJ6FHQOwNv4XePCywG0IqGIS4lw6cUorTEYdv6s1rnHs3zi2al3w3OxOyreC+PFW3lXdFfRW+n4Z5c4v1yzWpa8HipRlCcJOE4tSjKLylGS5STXJm/8AcDfCnbNE8LjYQleo/SQlFOvEwWnmxi9OeWa6PJ8mgrniJMRuzePwUpsbngL3h29fLsTsq9oyz44/HiMHxvhRtWr6uHhf61XQy/8Ao4P9AMOSDMop8NtqyeXyCUfWVtCS/wDoZLsfwWxU2nisTVRHtXxW2Nds3wxi/wCYI1fJ5c9DO9yfDLE49xsvUsJh+fFJZXWr/pQlyX4pLLlkpG292fDnAYBxnCp3WrVW3NTmn3hHJRg/WKT9TLgqh2JsinBUwow1arrjyS5tvnKTespPq2VwAAAAAAAAAAAAAAAAAFs3l2usFhcRiZQdiqg5cK0c3yUc+mba16HI+InnJyUVBSbkorPhim382OeuS5fA7C2lgYYiq2m1cULITrku8ZpxfxyZyfvbsazAYm7DXLWEs08slOL+rZH8Ml+TTXRgWds9UiDM9AjRHElxZNigiOK/L9hZUnz+H+hNriTvK7fl/l2YFJVBx5alx2djbMPZXdTN12VyUoSXRr901mmuqbXUp/L7f6r3PUgOntyN54bTwsL4pRmvmWwzz8qxLVfwtNNPs11zMgOcvCreB4LH1RbyqxDjRYunFJ5Uz91N5e05HRoUAAAAAAAAAAAAAAAAAAAAAAAAMK8T9xo7VoThlDE1JuqT0U0+dM3919+jyfdPNQBxfisNOmydVsHXOEnGUZLKUJLRxaPEdHeKXhxHacXfh1GGListdIYmK5V2PpJdJfB6cudMThp0znXbCVc4txlGSylCS5ppgQWQlBrii0mlJZpp5NaSWfOL6Mn1vuS828s3n09l2IooIrK0VESkqm16r9UVEZroB7Z+RApfH+ux5ORBHNtJJybaSSTcpNvJRSWrbemQF+3O2TPG43DU0rXjhZN9K665RlOb/RL1cV1OozCvC7c7+zcO5WpfKbspWcn5UV9WlP0zbb6tvokZqFAAAAAAAAAAAAAAAAAAAAAAAAAAAML8QfD2jaseNNUYmKyhalpNLlXcvtR7PmummaeaADkXbmwb8BbKnFVOuSzy6xnH79cuUo+vweT0KHgy9V36HW23thYfHVurFVKyPNN6TreWXFCS1i/VGkd7/CPFYVyswWeLq+6sliIL8UOU/eOv4QNdRZ4320KrA7LvuxEMLCifnSkoqDi4yjn9qaesYrm2+SM92Z4N4+dnDfOmiC5zUna3/BBJZ/FxCNe4eqds4V1wdk5NRjGCbnNvoom9vDPw0WCccVjeGeIy+ZBaww2a1efKVnTNaLXLPmZPujuThNmR+ghxWNZSusyldLuk8sox/DFJe71MkCgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERAREhIWFhUSFxMQEhUYEQ8QFRISFRUXGBcVFhUYHSggGBolGxUTITIjJSotLi4uFx8zODMsNygtLisBCgoKDg0OFxAQFzAlHx0rKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstKy0tLS0tLS0tLS0tKystLS0tLS0tLf/AABEIAPYAzQMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGCAH/xABFEAACAQICBgcEBwQJBQEAAAAAAQIDEQQhBRIxQVFhBgcTInGBkTKhscEUQlJygpLRI7LC4SQzQ1NiZHOi8DRjk7PDFf/EABgBAQEBAQEAAAAAAAAAAAAAAAACAQME/8QAHREBAQEAAwADAQAAAAAAAAAAAAECESExAxJBUf/aAAwDAQACEQMRAD8AnEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOX6Q9OsLhW6d3VqLJwhZqL4Sm8l4K75HNdYXThpzwmFla141qqed99OD3c35EZOojpnH9TdJLfWtK/wD0it/rtv8AcNvozrNwtSyqQnT55VIrxt3vcQ9CqixjbxtOPmV9Izl6XwGkKVeOvRqRnHjFp25NbU+TMk81aG07UpTU6c3CS3p28nxXJk09COmEcZHs6lo1oq+WSqJbWlufFefhGs8KldYACGgAAAAAAAAAAAAAAAAAAAAAcP1ldK/o1P6NRlatVV5NbaVJ5a3KTzS83wOn0/peGEw9SvU2QXdjvnN5Rgubfze4876X0nOtUqVqjvOo3KT3ckuSVkuSLxnlOqxq9a2SMKdZnycrsysHhLtHZD5h4TexF7Ewmo2kmlLut25EldEOgkqsY1Kvcg81l3pLkty5v3m96Z9EsPHR2KdOD16dN1otybd6dpvLZsiyLqeK4eeaLtvafin7mdHoDStWhUp1YO8oNSW55brb09nmc3XVqk/vP0bMvC1bFMeqdDaRhiaFKvD2asVJLfF74vmmmvIzTgOpjSHaYKpSbzo1ZJfcmlJf7u0O/OF9dIAAwAAAAAAAAAAAAAAAAADX9INKxwuGrYieylFyS2a0tkI+Lk4rzAinrj6Qa+IjhoPu4Za1TPbWmtlt+rG352RpKd/MuaWxc5zlKctaVSTqVHxnJ3k/C5iYbbdf88jvnqOd7bDD0SWerzoPdQxWJjk7SpUmvaW6c+XBb/DbreqfotDEa+Jrw1oU5KFKL2Sms22t6WXJtvgTCTvX4qQMTS9FTw9eD2Tp1IPwlBr5mWUVvZl4P4HJTyJiV32+Nn6xQpsvTp3flH91Hzsz0OSVuobFftcbTv7UKVRL7sppv/eiYyCeoyVtI1Vxw1T1VWj/ADJ2OO/XTPgACWgAAAAAAAAAAAAAAABFnXTpn+owcX/ma3grxpp8m+0fjGJKTZ5p6Y6Y+k4nE4i+VWbVP/Sh3YesUn4tl4nbK5ytPWk3xM3R+FdSUKcVeUmoxXGUnZL1ZhUI3ZJPU7oXtsY68l3cNHX5dpK6gvTWfkjpbwlMHR3RMcJhqOHjspxSb2a03nKXnJtmxAOCwx9IT1aVWX2YTfpFsyDUdL62pgMbL/s1UvGUGl72gPNapfp6ZFTomXRhfPjn6lyVM9Dm6jqWpW0lN/5er/7KJORDvU1Q/ptef2aDj+apB/wExHLfq8+AAIaAAAAAAAAAAAAAAAA5nrG0p9H0diZJ2nUXYU7ZPWq9265qLlL8J5x0lLNRW4l3rr0jephMKnlFTxM1z9in/wDX3EOVHrVH4nXE4iKvUIZLmehOqvRPYaPpya72Ibrv7rygvDVSf4mQbobAOvXo0I7ak4U/DWaTfkrvyPT9CkoRjCKtGKUYrgkrJGbrYrABzUHH9a+M7PR1SN7OrOnTXlLXa9INeZ2BE3XVpNOphcMn7KlWmt15NKGe6yjP8xWZ2yuBoRL0olOHWWRcqHVLv+pij38bPlRgvWo38iUDgepyjbC4idvbrOK5xjTh85SO+OWvVTwABLQAAAAAAAAAAAAAAMPTOPWHw9evLZRpzqvnqRbt52AgTrB0l22PxtW94wl9HhyVJakl+dTfmcPQp1G3KEkuTjdG3xNKpKnd2vLvSb+s3m3dtFnB4WSVsvWx34Q7bqYwTq49VJxS7CFSo7O61n+zj+/J+RPBEPU9iqGG+k9vVhCpVdNQTdlqx12+9sWct73HQ9LusGNLWo4TVnNZSqvvU6b4R+3L3LnmjnZbWzx2GldLUMNDXr1Ywjuu85coxWcnySI/011vUad1h6Ep/wCKcuzXlFXbXjYjnSeMq15upUnKcntnJ3b5Jbly2GoqpRu36v8A5kVMQtdrU63sdOVoUqavstTl8ZSZoMTj6uOxU6su/UqcLJNQjuWxJKPuOerYy/dhknk3vfJcEbPQ05QalF2fkbxxOk8tp9Ft7UWnsvnF7L7VtyaZaxCaWUvVJ/CxuaOmKn10p8W73f7Ttdns+3m7xva62GHpbFUpQm1S1ZNx1Em7Rjq97x7yy5SzbsZLr9jekt9V9DV0Zh3vm6tR+dSVvckdWcz1b4lVNGYNx+rB03ylCTi/ejpjnfVQABjQAAAAAAAAAAAABRWqxhGU5NRjFOUpNpKKWbbe5EO9POnssQpUKK1aDyba71azum0/ZjdJ228eBs+svpMqsng6Mu5Td68k8pzWynfeovN87cCLKs9aZ0zn9qbVSvN3ZfbSRarVVCN2YOj6jrTcvqRfk3wLS29PjuK28rvJL0Rb19+5GFjcTb5Lh48/gGmP0hbJfo/Ph8fA0tWq5PM+1ZXu27Li/hzfIQvuVucknLyjsXnc2Mq9hKDedsuO43OFqQjtlFfiRp4UtZ95uXi2/cbLDYOP2V6IVkbilVi1k0/MsY3Yyiv0faj2nZtLb2kHeP8A5IXj7zAlXnTym9eH2rd6PiltXh7zJZfGu46qOln0Ws8JVf7GvO8Zf3dZpRX4ZWiuTs+JN55Tks/HPxT3o9HdBtLPFYHD1ZO89Xs6j3ucHqtvxsn5kfJP1Wa3wAOagAAAAAAAAAADjOs3pQ8Hh1TpO1eveMHvhDZKfjmkubvuOzPPHTzSzxWka073hCf0en9ylrZrk5qUvxFZnNZawqvdpGswiu2zY6QfcNfgd51S1Wm67nNU48l5s2+FpqnCMFuWfN72abCq9ec39Vv12L5m1pVdsnu+IF2tVtnwyS4y3vy2eN+RqMTV43bbsktsnw/mMRWd5NNWzlZ3Vt7z8fiVYWnbvy9pr8seC+ZgoVG3elnLdwjyj+u0+LN2WZehTdR5ZJbX+hsaFJR2L9SoyrGGwkt6t4s22GpW3r1MZMrTAv8A0CEHrwjqS+1Bypt32p6jWsnwd0YWJMqnWa2Mx8dC61o+a4czM5k8LeWDGFnq7vahy+1HwzTXnwJu6mKreDrR+zWbXhKnDL1T9SF2u6nwa9/dfukyaupmi1gqs39es7eEYQXxv6Gb8bl3wAOKwAAAAAAAAAAY+kcR2dGrU/u4Tqfli38jy5SnnBt3beb4uzZ6c6QU3LCYqK2yo1orxdOSPLfabHws/wBfc2dPjTpucTO8DX4GebRX22VjDhU1ZlsWIx1ZVVxm/Tb8xXrZWRe0irSuvrWl8vkYSV/MMUzlsX4n/Cvn5F6k3N6vr4GNtcnxbXksl8DYaLhtYGwpxSSS3FaZSfUaxWmVJlB9DVdz7f35FFxcCysoy5P4P+R6H6B6OeH0fhabVpOHaTW9SqNzafhrW8iEehehXjcdCg1empdpW4dlCzkn4vVj+I9GnP5KrIADmoAAAAAAAAAAHxq+R5X07o14bE4jDNf1NSdNc4J9x+cXF+Z6pIh66+jb14aQprJqNHEW3NZU6j8b6j8IF4vadRFuHd1Z7Y5P5MtYmnvLjg1aUdq2r7S4eJkwtNXX80+D4HVLWVqutFcVl5HyMdhl18HvRj2MGNRj3UbHAb0YdOO1cG/fmX6M9V39RGtiD4mG7GpVJn0pTPtwKhKVk292bPh2vVn0UeLrRxNWP9HoSurrKtVjsiuMYvNvZdJZ52W8E7dz1W9GXhMM6tWNq+JtUmntpw2wpvg823zdtx2oBwt5dQAGAAAAAAAAAAABZxmFhVpzpVIqUJpwnF7JReTReAHnzpp0QqYCrvlQm/2VT+CfCa9+1b0uZdF31ouz38JeK+Z6jxmFhVhKnVgpwmrSjJJprwIt6UdVMs54Ko7J6ypSauuSk8pLPZL1Z0m02IzhWWyfcfP2X4S2fMtYzBtd5LJ7eTNtiNE4ihJwxNFw3K8ZJS4vPLhsbLUcDDdeP3ZSgvROxbGhlC2fqVqmdHhuj9SvLVoU5TfBRbt4y2LzMfSHR7EYdvtaM6fHWg9R+Elk/JgainJx5ovRqp/zLq5x9JRfxsZmD0bUrO1LD1Kn3aev71sNZwwU0Iu7ss28kkm229iyO50L1YYqq06sKeHh/itVqW5Qi7LzkvAkvo30MwuCtKENeov7WdpSX3UklDyS53Ju5G/VwHQ/qyqVdWtjb06e1UVdVZr/ABv+zXJd77pLmFw8KcI06cVGEEoxjFKMYxWxJLYXQcrq1UnAADGgAAAAAAAAAAAAAAAAAA+TimrNJrg1dGJ/+VQvfsKV+PZU7/AzABTCCSskkluSsioAC19Hht1I/lRdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExMWFhUXGBgZGBcXGBgWGBUaFxoWFxcXFRUaHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDQ0NDg0NDysZHxkrKysrKystKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIALEBHAMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAABAUGBwIDCAH/xABFEAACAQIDBQUECAUCBQMFAAABAgMAEQQhMQUSQVFhBgcTInEygZGhFEJSYoKxwfAjM3KS0WOiQ3Oy4fEVo8IIJESDk//EABUBAQEAAAAAAAAAAAAAAAAAAAAB/8QAFREBAQAAAAAAAAAAAAAAAAAAABH/2gAMAwEAAhEDEQA/ALxooooCiiigKKKKAooooCiiigKKKKAooooCiiigKKKKAopDtPbOHw43p5o4h99gvyNQravfHs2K4jaWdv8ASTL+9yot1F6Cw6KpDaPfdOw/gYRIwfrSuXI5HdUAfOontTvD2lPk+MeMH6sAEQ9zDz/Og6WxGISMbzsqjmxCj4mo9tHvA2bBcPjIrj6qnfPuC3vXMuKxAkbekZ5W+1I7OfixNYfSQNAB6ACkF+Yzvm2ev8tMRL/THuj4yFaY8X34G5EWAPrJMF/2qh/OqdkxRPP41gZ/fVgs7Ed82Pb2IMPH187n86bp+9Par5eLEn9MY/W9QD6QaxM3OgmL94G0jrj5PciD8hSZ+2mO446Y+jMPyNRcTVi01BK4u2+OGYxk3vkb9b054XvJ2ihucQzW4N4bj3goD86r0y1gGuR60F7bA70sYVDTYeOVDndG8KQjmqEsGPQ7vrVm7B25DjI/Eha4BsykWZD9l14GuR0xThgwJFjqPkKszsd2hZGXER38RPLKl7CVNSp68VJ0PQkVBf1FacJiVlRZEN1dQynmCLg1uoCiiigKKKKAooooCiiigKKKKAooooCitc86opZ2CqNSxAA9SagXaDvYwsIb6OrYlgD5lskenCRvb/CCOtBYNMm3+1mCwQviMQiH7N95z6It2PwrnztF3qbQxlwJfAjP1IPIT0aX2z7rCoc73O8cycyTmSeZJzNBd22e/KMXGEwzv9+YiNeVwikt8belQHbveRtLE3BxJiT7MH8L4uPP87VCxJ1o36oUySbxLOSzH6zEsfic68MopKZK1tLQK2mrW0nWtux9mTYp9yIDqWZUUepNTGPu5GHXxcdIxi1LYY7+5x8+8t/gKCDeOKx+kchVzbK7HYUMqrgUxEJXeXEl2QjT20dhdtcgpFqk+H7PAXuIVt/LeOFY5Yxy8QAb3wqDnU79wu41zoLG591qxeUqSGBBGoIsR6g101JssOE32ZmS+64sr5ixuyi/KsMVsKOVt6SNZGtu3dVfeHJgVz/Og5m8WvDJV7bT7r8HIS3gGMn7DFF9y2sKh+1u6oi5glPpIAR/cmY+FBXG/QWpw2v2fxOF/nRED7Y8yn8QprvVGw14DmK8Brw0ClGqY9giS7egHvDG3yIqFxVYfYzDGHCNOR5pMoweJzCX6Em56Cgtrun2qZIJcOxu0Ejbt+MUjOY/gVdfRRU6qmuwuMGH2hCoJ3JUaEnmQN9CT6q391XLUBRRRQFFFFAUUUUBRRRQFFaMZi44kLyuqINWchVHqTVd9oe9AWK4JL/60ikLbmkWTMOF23RnfPQhYO0NoRQIZJpFjQfWYgD56npVebd71ksy4NN7UCWYMq3HKLJzw9rd1qt9r7WeVvEnlaWTmx09AAAo6IFHO9RrH465uDa4sbdND6/vhQO/avtNisSu807O99GtZekaABEseNt7LU1HZ8Uxtc52z9aTtMdCb3/fxt+Va9aoTyGzHrnRv1niUyvypMDUG3erAtXhpw2PspsQ2QO6NWt77DrkfSgT4LCSTNuRoWb8upJyFTjZvYV4Y/HeJMSy5tCGPlAzJK5b4HG1/SlGzl2eiGHxXwsuokJJW508QH6umeXSlmyMNPES+JnvuvaMREl5DkRuuLEqfs62GZAqh32LjI9oQ7n0QCIZFyFRYyNGikt5vTPTPnT72b2RHh0CxvJJ/qSk7p/5UN7BctT0sTrTbDiS1t8AKPZjFtxeN2tk7Z/0jgL5l2hxZ1uOZJIytxJOnvqB+STje55/vL4Vp2rtTD4VPExEqxJwLE7zdFQXZj6Cq27S95qx3jwNnfMGdh5F4fwlPtH7xy6VWG0dovNIZJpGlkOrOb6n5DoKC2dt98Ua3XB4cudBJN5V9RGvmI6FhUI2n3i7SmJDYxo1+xCFiA6eQXPvJqPYfZ0sg3jZI+LuQqD0J19Betu7hI9S87fd/hp6XPm+VBpn2rK5JeeZj952P5mta41hpLIPRm/zTxhMPiJcsNs8W4HwnlPvZ7j5Clr9mtrWzwjW/wCVD+W7QNeB7SYqPJMQzDiklnUjkVfKvZWw858yjDSn6y7xgOmbJm0Y/puOlKMV2WxwF2wgI5oFDf2obj3imSRWQ7rKR91wQR6E6UFmYXuSxcsYkixeFdWF1ZWcqwOhDAZitb9xu0xmJMK3QPICfjGPzpq7B9v8RstgFvLhmPmhJ9k80P1G+Rq5MN3w7LePe8YrJb+U6OpvyL23Pfegp6Luzx0M6Jio1SNifMHR94C1wADvC9wLkDWn3aWNV3Ecf8qPyra3mbRiLnQDyj3niKw7X9thiWYQyF2kyeUBlWOMf8KHeAOdzdrc+eTTgGsANOXu0qhx2himjVZUzeJ0lXXNo2Dgeh3be+uh8LOsiK6m6uoZTzDC4+RrnSc3Q9dauXuux/jbMw5JJKKYzfnExT/41BK6KKYu1Xa3C7PQNiJLMfYjXzSP/Sgzt10oH2km0dpw4dDJPKkSDVnYKPidaoPtH3qY3GP4cBGGhJ0XOVh96TQaaLpzNQTCSyYiRFlkkkCozAOzNund3ja5yzNB072j7cYPCYZcS0qyK4PhCNlYzH7lja3M6CqV2v3p7Rxb2SQYaK+SRW3rfekNyT6WFRvA4YNgy981kcEkkKl7WF7ZXvotyeS+1SLZSXkuc8+GXy1tQWBs3vAxuAkRnkbEwt7cchuwH2on13s9DkelWBtjvPh3B9CT6Q7AHeN0ijJ+q72uz/cUE+lVF2ui8kfHK9x+hpo7NbaMTPCT5HzX7rDUDkGGvUCqJdt3ac07eJipjIwNwtgqR8vDjGSj7xu33szeN7R2kLWBFINobTLXHCmiSa9ApnxZPGkrNesb0XoMSMuorNW41qke1OvZzszjMc27hYHkA1e1kX1kNlHprrlQN0huKSwxMxCqpZjoACSfQCr27MdxcYs+OnZzr4UR3V9Gci5Hpb1qwBsnZ2yYGmSCOJYxmwW7scgqhj5mYmwGdyTUHNj9isTEscmKQwpISFVv5pAFy3h6qoyF2tqOdSY4Dw4fEw8m/EtrtESWhOQ/jR2uAM/P01zNKdqdpDiZ5JsQzQSN/LGbRxx38qMuuYJu2dyTlawDDJMI3MwZVKg+eJ/I6tobC1msbbvM3IqhTLjt1FlxaoXQ3Q7vn0y95FjY6CxIBpRsfHNInjP7TFhu8I1B9gA8T7ROpuOVQ3FYsu2+R/QvIXvc+/PqbnlWEOJljJKuwB9qx+duJoLHO0FQbzuEXmTr0A1Y9BUP7S9qHxAMaEpANRo0nIv+ijIcaak2pYktvSHgW1+J4dBSLORrmyjieAFQYoGkO6o14D9elK4zHFbdAll04lFPQD2z8vWs8Dh5JnEGHQne1Ohbq54L0qZxHBbHGYGJxtvZv5Ijb61tPT2j0oE2yOwmJxS/SMdKMNhxmWlIWw5BTkl8sjmeVLm7QbI2f5cFhTi5Rl401wl9Lrcbx04btQztB2ixONffxEhYD2UGSJ/SgyHrrTZQSvaneNtKe48fwU03IFESjpceY+8mozisVJIbySPIebsWPzNaiRbjWJNUeobEEEgjiMj7jSxtqykbsh8VeUnmt6N7QPoaQE1nQOcOGDKWiJIA88Z9tRzFvbQcxmNcs6Sslj+9D+/ka14WZo3DoxVlNwRw/wAjpTpj1V4xOg3QT5kGkb5byr9wkhl5A24XIaMO9j8/h/2qS4WX8qi0Zp72fN5B0y+FA9SS3Uip/wBzu0imEnUk2GJe3QNHCxH9zMffVZyTZGrU7l9lk4F5GFxJiJGX0VY4/wDqjagtGuU+3WMbEbSxkrm9ppI1zuAsTGNQP7L25k1efe52tGAwLiOUJiZABEPrWJAZ1HQE586oDEYCRSSytY+bfYGzhvMG3zk173veoDYyXnj6m3rdWrzs1H/93CPtoR678Bt87e+ko2t4DBozeQA7rcEJBXeHMgE24fClmFfw5MDNa2SAjrHKUN/wsDVG7ZGGDwTAhiyStYFvIN62YH2vLfK3WkOzcpbG2R/dqednwhdo4nDlHff3t1V4keYZfW9MgeNMWMXcmyAFja1+X65aUE07WR7+FRxqpv1selV1icjfiDlVnOplwLG1iLH11148KrPGJr8f8/nQEj3rUTQdL1swGDlnkWKGNpJG9lUBJPuGgGt9KDXv06dnOzuKx8nh4WJn+02iJ1d9B6a+tWp2J7kj5Ztov1+joflJJ8Mh8aubZ2z4oIxFDGsaLoqgAD3CoKx7H9ymGgtJjW+kSa7nsxL6jV/fl0q0cNh1jUIihVGiqLAegGlbqKAqlO9TtOMRiThVJMGGN5DGfM01jfofDH1eZPFasztv2g+hYVpFF5WPhwp9uRgd0egsWPRTXPeKxhWLwWW7g3cNYSM7E7xa+ZJY3vz4cg3bRHj7u9uyAZrLG1ic/YkQ5xnoeRzqL7TxO+xt/LQ2Fsg7WtlyH6DrUg2lhTBDHhkt4858xHAHNyT00vyBNRiQB3EcfsLdV6gZtI3ra/paqMYIyxv8Ty9acYMFvKSCCBqRnb+oDSvcJAvl3gdy1wMh5Rm0jA6qQrW09bCtOEneaYSEndiQLewuw824h0uTe3QDpQJpMELktkBrWmCFpnEcYsPy6nrRj8QXIVTcXy6ni3+K2PP4KeGh87Dzty6CoHibbS4OMwYT+Yf5k3H0Tr14cKjF8ySSSdSdSedeAUUHt68vXoFFqDyisrV5agxNZJRu1lGuY65UGSrS/Zze1HwkBH4gCVP5j8XSkait+GazKeRBqgSl+AfUen7+VI2GZ9T+dbYmsaB1hjkmdIYV3pZGCIv3mORPQZkngATXUHZ7ZKYTDRYdPZjQLfmQM295uarjuX7HNGv0+dbO4tApGaRnMyH7z5WHADrlbFQcw99mNMu1plOkSIgz08obLlfeqENiGKhCWKg3C7x3QeYTQGpZ3iXk2rj2t9Y26+GFU/8ATUVC0Dr2d7MzY2S5skYzZjyHBRTr2nwtoMsjHMVHMK8e4PfvRXp/7rPMWWtnbHAWGLjFs4/FX1gZZGA/AZqCJ7ZxoTGYfF7pZZYkcqrbrEld1l3vXL3Ul2/CFcgpusc7Zg2PCxF+FasXLfCQOPahlZctbMfEXPhmT8KX7flE8a4g3Bk0XOwtkbnVjkDcZWI43AofOycwMEkduGtydbgZaanj0qHbSh3XYeo/706dlcUiOLi/K9h0NjqNf3rWntHCA5I5/wCP3qfyoGvBxKd3xCRHvKH3c2CXG+VHMD52rq/sl2XwmBiUYWNQGAJkyLyAi92fjz5VyxgYQVYHPp6cfhf4+oPR3c7tj6RsyFSfPB/Bb/8AXkh/s3agm9FFFAUUUg29tIYbDTYhrWijd7E2BKgkC/U2HvoKg7zu0LS407isY8KDEHCho/FksZQ3IgKgBz9lhbMkRTs6hxWIaeUKEw67xIJzdtAQTlYBm14DnWjGbY3IfDkDF82kdWU7zsd52YDW5N/ypXJA0OzIYI/5+McC2n82xLNyAQIOm9QMG1sYzJJij7eJZooR9iBfbb1bJeGr88m7B4c2RFzkmNh91b5H0Ni3oBSjaoWbFeEh/gwgQo2l44Qd6Q20LEO/QvThsXBmXxJrmMyN4MbKpPhgDztr5QEXcvwoEmOgChYknlaORgnhlQxJB3SU3iLDeHS9ebbiXCxLCpuSCSeYPlZ+m9YqBwVSc96nnYEC4jETYtmIihBVWOoRF/iP67twPvSDlTdsbB/+oYqXES+WCIGR+Sqo8kY9FX5daBgERiUM3tvoOQ50kC/Ol20MSZ5XltYE+UfZUeyPhWkR0Gncr3cpQErLw6o0REqQQSCORt+8rj30PHY9KUCOvSthn7v8UCUrXm7Snc1sb14UoEzClDYgyb7Na75nIKotaxUDQgAj0rwpW1sWQIwosyaML6cyNCbceVBoHPnWaisf3+tbI9RQZHWrJ7pOwf01lxWIU/RkbyqcvHYHT/lgjPmRbS92bu17FnaWJ89xhoiDK2hbisa8icrngK6Xw2HWNFRFCooAVQLAAZAAVBsAtpXtFFBzf2wwgO0SBa7z4uJvUsrLf3SrVfoOdWV3hEpjcUQtjDjYJgcvZnh3Cf8A+kMY99QPb8AjxM6C274jMtvsP/ET/a4oJN3ZYzcxAF9am3bCFRNFIRdSwVsr3WQGF/8AZK3wqpuz2N8KZW61bG338fDbw13ciNRcW/WqKhEZRJ8O2qn/AHRMVv76V4TEnE4dIbHehU7znMBLkqAeFedocsV4lrLMiSWuL/xF3XGXEOH+FIdmYiXz4aOwEjXY8goOudt0UGOFdFcksSL5WsDbhxp62tLE6gofhl8chc/DjUfxEaqxAubHlYfOnbCyhkt5RbgNfy/K3rQadmCzZ6Za59NKtDuS2t4OOnwZtuTJ4kfR47AgDqh/9vrVY4ZbP+/jTxsnaRwuOwmJtYJIoY3Pst5Wvx0JoOp6K8Vri4417UBUC75toCPABLkeNNGhtxUXkcN0KoRU9qrO+TFXxGAg1B8aRlva5ASNc+okkFBVe3I8PPJFHGFDsygjd3Tu8STbM2B58c6ddv7TtiXkX2cJhmZOI8WYiOMW52dfcppslwyR4xdwX3VYjlnYKByOdraCku33us/Ay4vc6FMMhUfFnv8AhFA2bLwhtYXu5WMW1sxBcm/QKPQtTptwfQ7Lh5pRHLvKYyRJZSLMUN8mueHHjWMH8NUkztG28QMzuklTYfA+6kz4lcVjYygJjQDX7t2Jtwu1qB67QyDCbMTDr7UxseF0iIaUn+qY7vpGKU7dh/8AT9kwYMZYjGnxp9LiPy7qtxtewtp5WNJsVD9M2tBhznHEyIf6Yh4kt/6nL59RWvt1j/pW0J5PqIRDGOSxZZfiLUEXWKtiw0tjw9bkw9UIhDWXg04eBR4FA3GKvDGbEDjzAN7Z/s04mGsTFQNgiORKgA8R/wCa8aOvcTCqljdhusMt0G1/MM7jLKlLrex4HOgQlKIZGS+7YEi1+IB1t1pSyVpZaBKBW3BwNJIkaDed2CqOZY2A+JHurEirA7jNgfSdofSGH8PCrvdDI11T4DeboQtBeHYns4mz8HHh1zYeaRvtyNm7foOgFP1FFQFFFFBQ3fDhyu0ZhbKfCKy9XgfeHzWq67RHe8CX7UQU/wBUZ3cz/SVHuq4e/wAwe6cDjOCSPDIfuyi4J6AI/wDdVRYuC+DdTbew8ovc/VJMT25+YR/E0DNG9iKtnsnifGw26TmARVQ3qd93m0t1twnWqG7tbhLRKbfypXTS3klvIPhJ4oqOYbGGGVZQL5G63IDXFiDbhn8qn3aqHeaaMD+bGSuX147yr6ZLKPVqrh9AeVAsxV2Idhu3FwDcdMudbcFKi63J+WXTlWeLEssYxErbxYkA+W5A8ug00pIvUX91/wA6B3wLr4yHRSd3O/Hnr0091qdtv4MGAixvbiSfSx0/fOo4JN7QkNwPK2YNSzFt4kCuM95Q2oyJzYWGlrHKgvru+2r9K2dhZybs0ShjzeO8b/7lapDVY9wmNvg5YD/wpSRn9WQBtOA3t6rOqAqmO+hUk2hhY3O6Bh5DfMX3nAtcZj2PnVz1THfpszxMXgmD7jPFMgJIAujRsBnln4h1oK5wWEEOKAve5W/m3rDfU/pSGaXeXD3Opmc+rSa/Cs5cE+GlXfNySOYORyOevwFqb1lt4fQEf7jVD9vgAdAPflY+uprXsrdWRQFC+YEgC2hzuPQGkqzXZQNSRb1uP8Vpw0pEpJ13mvrqd64zoJH2Jk3ZsRim+orsSeVmkb5H5U1YPDEi7ZscyeZOZPxJpRsjFbsOIh4uSn9/hx6+jGneHDUDfHhelb1wlOKw1t8LpQNZw1YHD07GKtTR0DW0FaXhp0aOtEiUEe2rCQyMN2xsGDFBfdO8Pa4WJvRCnlGhsWGRBFgTu6G2hpftOAMqhr2Dre2Rsx3WI9xpBhIgl15i/wCJSyN7shQYOtJ5BS2QUkloEkhtXS/dH2aOB2fGHFppf4svMFvZU+i7o9b1T/dT2W+nY5WdbwQHfkJ0Zv8Ahx9bnP0XqK6VAqAooooCiiigifensb6XszExgXYL4i2t7UZ3xrzsR76562bMGaxN1xMG6dD593ca3XeRW9TXWDKCLHMHUVyf2z2W2AxU2G4RSloieMUua/AhffegixFsjqMj6jI04bHxhjkDX0NJMRmxPM3+OZ+d6wXKqJttjaW+qSD2kIP9pBt8iPfUPxUIDOBpc7vocx8jat8eKNrVpBuR0y+Gnyy91Bjstd7eu4G6twD9Y8hWyK545Uklujmx6g9DS9xusApvkLnhfjbpQa1Yg2/7VJNj4u8LJf2STpwbT53+IqO4mOxvelex8RaQC9g11PvzGX9QHzoLH7ktpiLaUkJsBiIju65vES4A/AZD+Gr7rlfs7jjh8fhZdCk6BuGTkow/3muqKgKrLv52Z4mDhnWwaCUZn7MvkIuNBveGfw1ZtN3aHZK4vDTYd8llRlvyJGR9xsaDlbaWy5ok8aSxzW53r8rADS2frlTVNr7qdF2NOWkikVy0JZWUMo3GBsSd4+ze2YGlNliVW+oJUjkdR+RqjNJiLEGxGeeVjwINEMhEgJ4uCbEH2jrllxpK4rUJLZjUZ/CgfQSm0FTgZYvmUP6VYAhz0qv+0uUkGJXRgp96+b8vyqyLhwHGjAMLaWIuPzoNYjoKVutWJoNJWtLilDmtEhoE0gpLLSmRqSStQJZqQ4hbsG5Ai3O5BH5UrlakUpoNMrfGtUGEeaVIYlLyO26q8SScr5X0FzyAJryeS37v+Wvpxq8u6XsIcGn0vEKfpMi2VG/4KHO1uEjZb3KwHOoJV2I7Mps7CpAti1t6R/tuQN49BwA4ACn+iigKKKKAooooCqc/+obs5vQxY6NbmM+HLb7DXKsegbL8Yq46S7UwCYiGSGQXSRSrDowtQcZRis92nPb2xJMHipsK/tRMQD9tdUYeqkH/AMUit+zlVCVsq9gbOlDRX0z9KTEbrC49fQ60CjaEV1B4qbH0OY+dx8K14aYlbZZceNKwuRU8RY/ofyNIcKWR7AAnqL0C0qCtJr2N6XvC4zYelhYD950kkW4oHKbGCSISXtKliT9oobhj1yA91dbYCTeijbmin4gGuLmcgEc/1y/WuztlLaCIHURp/wBIqBVRRRQUn359j7ONowpcGy4gZ2FsklNuFvKfw1VeIwm6wF8pB9kgLILEAE66aiuvMRArqyOoZWBDKRcEHUEVz9257t2wDPLGGkwLcj/Ew19Lk3uo+3a+efOggDYPeFwPXoRkQffSGONVceIPKbg/duLBh6HOpds8AMSWVyADIEO9cCw8ZLe0Ro6jMainDaPZhZk34iDcXFswQcwQeI61RHcNAZcPJhW/mwm6dQcxY8jcj8QqQ9hNpGTD+E3twndF9SpzAPUG49LVGpIpMMy76sGjBCMBfeHCN8x5Nc9RlThhp7SDF4cBm0mhJt4g4rfVXtxHQjiKgmzNWpnpPBiklj8aJt+Me3fJ4T9mdR7Jvlveyeedq1tNVG53pPI9annrRJNQZSvSOZ69ke9Jd4s4jRS8jGyxoCzn8Iz/AEoMJZKR3LsFUEkmw3VLEn7KKPbboKtTsh3VO5WbHncXUYdTctll40g4fcXlmTVobN2FhsPnDBHGeaoAc9bHUVBXndl3beAwxeMX+JrFCbHwv9SQ6NIb5DRepOVqUCigKKKKAooooCiiigKKKKCtu+Hsl48a4yNbywZOALs8XEgcSh83pvdKorH4GzXUgqw46HmLj3EetdekXqnO1/dRiGn38C8Xgu1zDKSvhk67jAHy34cNBlQVHgsKVNza+lhpb/NYbXgGop/2jsXHQTtAcHKZAdUVnRr5BlcC26eZtS/Dd2+18TmcOsQ/1XVf9ouaCLYBRLF95LKev2D7xvL6haa9qQWII451ZOH7oNq4clx9HkVgVdElYEg8t5VFwcxnqKi/aXDSQjw8VC8Muo3xZSR7W6bkFT0OV6Br2XKjJusWvwuXI+AFqwxEe4eh/d6lXdd2CbaZlJeSFETyygauSN1QpHmUAMTY/Z51OE7jXZh4uPunEJDZj+JpCB8DQVf2G2CcdtCCBRdd4PIfsxoQzE/IepFdaqthYaDSmLsj2Rwuzo/Dw6WJ9t2zd/6m/TSn6gKKKKArxlBFjmDXtFBAdu912GctLhLYacneBAJj3hfPcBBQ5nNSNcwRlUXj7IbSgBPgRkgkkRPeKW5uWVCA0TnXIFSdQNauaigpSXamH/l4yIxNpaQbt/QnJvcaado9ncGfPBPuH14dc8xV+YnDJIpWRFdTqrAMD6g5VG8X3dbLkJLYKEE/YG58lIFBQeKXwZBIswEi5CSNij26kajobg1rk2/cWLwk87eEfeF8pPooq9V7q9kj/wDEU+rP/mnPZ/YfZ0BvHgoAcszGrEW0ILXINBz7s/6XiM4MKZl+0gkK+m/u2vT3gexW15iQMIsXIyMAM/xE/Kuh1W2QyFe0FRbH7nZGO9jcWSOMWHG6D0aU5kdAB61Y/Z/s1hcEm5hoUj5sBd26u5zbTiadqKAooooCiiigKKKKAooooCiiigKKKKAooooPBXtFFB4aY+1GkX9dFFA74X2a3UUUBRRRQFFFFAUUUUBRRRQFFFFAUUUUBRRRQFFFFAUUUUBRRRQFFFFAUUUUBRRRQf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTDxITExIVFhUWExgYFRgWFRUZGBUYFxUYGxkVGBYYHSggGRslHRoWITEhJSkrLy4wFx8zODMtNygtLjcBCgoKDg0OFxAPGi0dIB0tLTctLSstLy0tOC0tKystLSsrNzM4Ky03NzQtLSsrLTgsLTc3KyssLTgrKys0KystLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABAIDBQYHCAH/xABJEAABAwEEBgcDCQUFCQEAAAABAAIDEQQhMUEFBhJRYXEHEyKBkaHwgrHBIzJCYnKSstHhFFJzwvEzQ6KjwyQlNDVEU3SD0hX/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABoRAQEAAgMAAAAAAAAAAAAAAAABAhESIVH/2gAMAwEAAhEDEQA/AO4oiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAsDrVrRFYowXduRw7EYN54k/Rbx8KqXrFpllks75nX0uY3995wb8TuAK83ayawS2id7i7ae49p2X2W7mjABBsmsOv8AaZXHbtJibkyJxYBwqDtO7ytebrE8m60y14vkAPiaFa1a204neVZ0e7tFpwIu5j0UG7t1ntTP71/MOIPkVlLB0gWxtKTPP2jtfiqtIieW3fR936KbZiK08EHVdEdKUgIE0bXjMt7LvyPKgXRtC6ZhtUfWQv2hgRg5p3OGRXnmzxg3LMaD0jLZJxLE68XObXsyNzafzyQd+RQ9E6RZaIGTRnsuFeIObTxBqFMQEREBERAREQEREBERAREQEREBERAREQERY7WLSP7PZJps2s7PFxuaPEhBx3pl1nL5+ojN0dWCmbv7x3jRo5Fc3jaGN45q7arQZbQ+QmoBoDv499571DtMlTwQR7RJUr5Y7K+SRkcTXPke4BjWirnOOAAXyi770Laliz2cW2Zvy8zfkwRfFEcKbnPxPCg3oNR0t0WWuCwsn2mySBu1PE0Xsz7BH9pQUqOBpXBaNE7yw5L1suAdLWrIslsEsbaQz1cAMGP+mzgDUOHMjJBqkFros0y07TA7dccfy+Oa1Gd1HA7/AHj0Fl9BzbTnMNO000q4tAIwJpjnd/RSrPHUOi7T2xObO49iW9vCQD+ZopzaF1deZNH2x8b2vaaOY4Oadzmmo8wvSOi7a2aCKZuEjGuHDaFad2CqJSIiAiIgIiICIiAiIgIiICIiAiIgIiIC5z016TMdjZG03vLnfdFB5ur7K6MuMdL1o6y29XkyNre8gu/nHgg5PH2Yhx+KjOKmy6LnNwDT7WPiqG6Kmu2gBeBiDiQMAgymoWgf23SMEBFWbW3L/DZe4d9zfaC9UtaAABcBgtA6I9T4rJZW2mpdPOwVccGsrVrWDIHsk77ty6AgLB646tR6QsjoJCWmocx4AJY8Vo6hxFCQRmCcMVnEQeWNadAvslpks0jg50ZadoAgODmg7QBwxA7io+jBsva7cb7gbs7jcbq4rfunCyhmkIpMpLNQ843uv8C1aJZLSzegyzmhz3OaCATWhpdXHAAY1yXZui21bVg6s4xSOb3Htj8RHcuO2S0R/vBdM6KrU3bnjBrVjXU+ySCf8QQroyIiAiIgIiICIiAiIgIiICIiAiIgIiIC4JrrN1mkbScflC37p2fc1dt03pRlms8k8lS1gqQMSSQABXMkgLzzZ7cZnyv2SPlHA7RFSca3b6oDYzw8T+SpdETsG6gdW6pr2XAZb6eCltZwypip2grH1tphs7S0Oe6rQ40DgwhzwMb9mppwKDuujrP1cMUYwZG1v3WgfBSERAREQcx6b9DufFZ7UCwNgLw8OJq7rHRhrWgA1vaa1IuXH44paVEUZB+3dw+afeu6dM7qaJd/Gjp4k/BcksF9maeI8NsVQY1kkg/6dp9tw/01tGoWn22a3MkmYYo9lzXuDtu4i4FuyDTa2T3I3RbT/ex4b6b1S6x7Dh2gag4GuQUmUq8a9AA1FQvqhaEftWWzu3wxnxYFNVQREQEREBERAREQEREBERAREQEREGo9KjqaLk4yRj/MB+C4lYAWdZUHtSFwoCagtbu5Fdl6XrZHHox4e8Bzns2G17Ty14JDRnQVPBcK/wD1CAHAZXV5oM4bY1vzqjm1w8yFXoTWGzw6SslpeXOjh64u2RV1XxFjaA0riVptotDnklxJVouQektG9J2jZnBv7R1ZP/dY5g++RsjxW3Qyte0Oa4OaRUFpBBG8EYrx71q2DVLXC1WGQGB9WE1fE+pjcM7von6wvwxwQenrbbI4Y3SSvaxjRVznEBoHElcl1r6Zw0uZYIg6l3Wyg0PFkYIJHFxHJaFrrrrPpGXtdiIH5OFpJDfrE3bbuJ7qLXI4LwBe44fn+v8AVBmdI63222VFqtDnx4hlGsYDkQ1oGVcarL6KYDZ2jI1/FUFa2+FkQrIauOQvJO5ozR+lZ3NDWARMAxJFeZJuCDbhH9byV6FlDWte5aPDQntzSPP1Wn8TqArYdCW9sTgQ92zgWTxB8bgbiCWHabwcCCCg9A6q2yOSyQhjw4siY14GLXBoBBGI+Ky64LZNZHWW1Rua4tZJTqnk7TQTjC94oJGVwdccKgEVXa9B6UbaYGyNuyc3Njhi0+8HMEHNBPREQEREBERAREQEREBERAREQFj9PaXjstnknkPZYMBi45NHElZBcU6dNYTtts7TdGKni92HgK94KDStYdMvt00lonfVxJbFGD2WAYu4MbgB9Jxqbga67NJUgZC4K7DHsR+Xhj518AoRKC8Crc8gbib9yqaaCvhzUOSPegp/aKm5ZFrdkUzz/JRNH2cVLzlcOe/u+KycEd+1huO6mLu73kIDIaZVJNKbz+7yGZ7t6mH5LstG3M/y/IDevkbgxnWEGp7MbcSBldmSad5HFVFpiFMZpPnHEMG4cB5lBGMWy6/tykXnJo3AZDgq4bNtEknaI8rshkq+r2QON9TicalSYBsxne93kOeOPkgQtANw7zvwp6/JSGuFRluO6uXfddy4JEB1bq/SOz3DnzVIZcd9M76gb94x8+JQSG7JDo3isbx2m5H67P3XjHjTlXe+iTTD47Q6yyuqT8mT++WtL4Zfaj2gTmQFz01LSMxeK30I45jjjfvNBltA27YtNmnFwuDv/S9srR93rm8gg9FoiICIiAiIgIiICIiAiIgIiIKZHgAk4AEnuXlrXe1ma27TvpSOeeQP6HxXpbWKXYsdoduhf+Ery7p7/ih/AJ/wuKCNPdG0Z0qeZvUDNZC24AbgsfRBcpcFaeFeOA5L7Z21eOF/ggvNiuawY4d5/VTYogS1owpefqA3feNXclYs7KuPhXibq9w2j3K+95EZLR2pCGsHC4NH4R7RQX4XgudO75kfZjG91LzzFafacdyiyvoHOd852PAX3d2HipNqaBsRA9mMAuO830ceZ2nd4WMkkLne7h+YKC6JSTjgPDjy9cpLQbr6d+HuqPXK1E0AVPcp1gtZaHANBDqY7xWlON6CovdRoyF3K848Mb/1IvEgOHIA8T+dcDyzpSO1hArTdhx9C79FIYcDdQjupT3esMQev1/MfCpNNgNxFfmyOI5GKVt33vcq6Y+sMzxGfdwCaDjL5iwfTlpTiWPG/eg9OsNw5KpEQEREBERAREQEREBERAREQYfXAf7vtf8AAefBpK8y6Vh/2mI1J24W1Jz2hTkBwC9UaUs3WQTR/vxvb95pHxXlfS7+xZ34FtWHgWkge5BGmNWMP1QfEKBRZJwucMg67ke03yIWPkF6Cp2AV6wtrt/Z95/RRwbiFJ0ZeJPZ95QSImHYNLjXnj2R5F6v2drv2hoc4UjYXUAoATQNzNaF1fZXyIfNG9w8qn+ZUNl7NpfmSGjwJ/1B4IKJJew5/wC86o5G4DlQDxViytvV21MuaL7h6uXyxNGfo30r5eKC8ztHfkB7u9ZOGEbJAbV30id+4cVjrI6jxXI+v6/qsuC5rCaChvvOFUFE+zsimYvGdRv4+sCrENooaDmfjjnvHuxVdpeLmi8AHhXjzx9VIj2RhcaAElzqADGgx2aX7QAr7PgE1jhy9Xfl30Wb6PNG7ekoWi8CQSHcNntju7BHfTgoOkbBFExo2n9eKF7WuaY2A37B2gXE7IvIcKd5W89ClhDnWi047J6ocHXFw5gBvdJlgpLtcsddOroiKoIiICIiAiIgIiICIiAiIgLzTr/oow2622elB1vXRfZl7QpwBq3uXpZct6b9AF0cVujF8Pyc1MTE89l3sv8Axk5IOJwy1a0+y7gRWnxHcFatTbyrtpj2H1+hIK3ZHOnEGhCPvrXH38RwKCCCpui3Ue7i3zBHwqoUjb0s82y8O3HyzHggzUbqOb9o+5qiMd8k4b5f/j8lffcQ4YV96gl9A8bnB3k0oJr4i5xvuF/HIdwy71Q0AcjjyOSqnfjvpVWwcPV5y8KeqIJDWcf05+v0ktLqUr+n5j1ypibQKnrDSm/1Tv8AVcw+zGjTTH+lw9buCt2bSAbsmpaRmK1HeOfgSODjjl6Pf4+Ode0c0UqRXurX48fHeSgnsnMuyGkucTQYk1PmT7+OK9Gap6I/ZbFDD9Jrav8AtOvIrmBgOAC5V0Oar9ZMbVIKxxHsbnSYgjgLnfd4rtiAiIgIiICIiAiIgIiICIiAiIgK1abO2Rjo3tDmPaWuacHNIoQe5XUQecdctUnWOd1nfUwvJdZ5DluaTvGB8cwtNLS1xY+57bhXA8ORXq7T+hIrXA6GZtQbwc2nJzTvXB9eNSJrOaPaXtH9nK0Y8OfA+eKDRXsrXIjEKPJGr73EdlwJIwpc4fHuXyBxJobvtAjzA+CC/ouTa+Sdi4EMPHIHvwUeTEHeC0ji2+ngfJT7Jo8veA0EmuIDzS/GuyB5qZpvRbmOL7tlxG04YMlF4PCuNOJQY+I7TB4HuVdnFTX0cbvf6qqRA+Khc0hrxUZgHg4XHge40NylsaHYd/PkgSvu8r/XrxVpz/D1jyv8+NLpsxOfl6v/AE4L6Y2svcd3qnd5DCgoFMbMzcM/Xr30y+qur8lvtLYmCjcXHFsbfpE7/jcLsRTq3oC0aQmbHCwhoptPNQ1jcnEjDgMTS4Xdn0Hqtq5DYbOIohfi95Hae7edw3DLnUoJ2itHR2eBkMQoxgoN53uO8k1J5qWiICIiAiIgIiICIiAiIgIiICIiAiIgKiaFr2lrmhzTiCAQeYKrRBxzpf1TssUUMsbCxzpCDQ3UDHGgqKi+meS0zVzRHW2yKziUjbdSpANLl2PpW0Q6ewF7DfA4yEfvM2SH94B2vZWg9FeiTNb2yi4Qdp5ob8Q0DmfcUG76O6M4GkGaaWX6oOw089m/zC2i0aBsz7MbMYWdSRTYAAA4imDs64rJIg889ImpgsEkYZKXxy7RYL+sjDaV2qDZc3tAVI7gtVs2jy52ywFztzQa/dAPlRdC6VbQ52lXMfUNbHGGcWU2i4e0SPZUroh0Rt22Sc3thZdu231H4drxCDTLFqjbpTRlnnPEte0d5fRvmt11c6HXFwfbJABcerjO04/aeRQcaBxvuIK7EiCJovRsVniEUMbWMGAbvzJOLicybypaIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIImlrJ11nmiu+Uiey+tO00i+mV60HoW0YWRWqU7PalEYoSf7MEk1IwO2PBdHlfstJOQJ8AtP6J46aNDj9OaR3nT4INyRFTI8NBJNAASTuAxKDhuvLZLXp8wsBrtMhbUYANq52Auq55xNwuyXZ9EaLis0LYoWhrW+Ljm5xzcd61Do4s4nltekXtG1NMWxEgVaxtRccsQ32FviAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDFa1Wnq7Ban5iCSnMtIHmQomoNm6vRllbvj2vvku+KgdKVoI0cYx86aWOMce1tfy+a2mxWcRxRxjBjGtHsgD4ILy1bpJ0kYdHSBvz5iImAYnb+d/hDvELaVounv9q03ZbNiyzNM8n2ri0H/L+8UG0at6MFmscEGbIwHcXG9x73ErJIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDSukj52jv8AzWLdURAWjasf890n9ln8qIg3lERAREQEREBERAREQEREBERAREQf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMQEhUSEhIWExUVFhUSFRYVFhUVGBYXFRcXFxUYFRUYHiggGBonGxYXITEhJSkrLjIuFx8zODMsNygtLisBCgoKDg0OGxAQGi0lHx8tNy0tLSstLS0tLS0rLTctLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tMS0tNi0tLTArLf/AABEIALoBDwMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcIAgH/xABDEAABAwICBgYGBwcEAwEAAAABAAIDBBEFIQYSMUFRYQcTInGBkTJSkqHB8CNCYoKx0eEUM1NyosLxFWOTs0ODwxb/xAAYAQEAAwEAAAAAAAAAAAAAAAAAAQIDBP/EACMRAQEAAgIBBAIDAAAAAAAAAAABAhEDIRITMUFRQmEiMnH/2gAMAwEAAhEDEQA/AO4oiICIiAiIgIiICIiAiLQxzF46OF00ps0ZADa5x2NaN5P5nYEnZvTNiOIRU8ZlmeGMG0n3ADaTyGa5lpF0pOzbTNEbfXeA555hvot8b+CpOlWlM9fNxOepG09mNu/9XHb5BR8OHMbnKesfwPoDkB9bxXRjxzH393PlyW+yQqNMKicm800nIOfq+y3sjyXxFj8rM7zM5gyN94WCetsLbBwGxRk2Im+RPzw8lrP8ZWr5g3SDUx2tN1rfVl7f9fpX7ye5bWOdKVUASxjIG8QOscPvO7P9K5iakHM7eIyPnv8AFbtLXfVd2mnK/wACFHjj9J88vtPHpKq3G5qZPANA8g2ylML6TqoH9+2T7MjG2826p96qUlIBmPRPuWKXD2naP07rbEuM+iZfuu24D0jQTWbO3qHH699aM952s8cuauzHAgEG4OYIzBB2EFeV4nSRHskubwO3w/VXvQbTd9KQ1xL4Ce0zfHxMd9nNuw8issuKXvFrjyWf2duRYqSpZKxskbg5jgHNcNhBWVYNxERAREQEREBERAREQEREBERAREQEREBERB+OcALk2AzJO5cC6RdKnVs+rHcxtJZC3jxeRxd7hbmuk9K2N/s1J1TTZ05LP/W0Ayed2t7nlcRw0XLpTvu1vdv81vxY6nkw5cu/FuUsIhbYZuNi53E8uQ+eerVVXzklVOtC2sVrGNr4cXPyVh0Z0GqK4/Rts0ZF7smt8d55C6z6H4CayoZA3f2nu9SNttZ3fmAOZC9C0dKyFjY42hrGizQNgHzvVM+Tx6i/Hx+Xdc0o+hiAD6aokcf9sNaB7V7rBiXQtHa9NVva7hK1rweV26tu+xXWEWPqZfbb0sPp5vxDBanD39TVx2DriOQHWjk46r+PI2PJfDBfsnaBlzH5r0JjmEx1kD4JRdrxbm0/Vc07nA2IPJefcUoZKWZ9NNlJEcnbntPovb9lw+I2gro48/Lr5Y8nH49teWPht7xfyWkYzGdZoN94H1u4et+PepIShw2Z7x+SwPGVtylSVfOjPSrqXiB7voZSNUnZHIdh5NdsPOx4rr68v0XZc5u43Pjv+ea9A6DYsaujjkcbvbeN54uYbXPMix8Vly4/lG/Fl+NT6IiwbCIiAiIgIiICIiAiIgIiICIiAiIgIiIOSdO8bgaZ/wBUtlZfcHXYbd5F/ZK5fR1Q6sNvYheldKMAixCndTy5A9prh6THj0Xt55nvBI3rzFXUJjkkjJF43vjJHouLHFpI5G1108V3NfTm5cbLtkkluVkpGFzg1rS5ziGtaBdznHIBo3krZ0a0aqK+XqoGgkWL3kkMjB2F5tlvsBcmxsMjbuehWgMGG/SE9dUEWMrgBqg7RE36g55k8bZKcs5irjhcmXo90W/0+C8ljPLZ0pGerb0Ywd4bc57ySdllakRc1u7t1SamoIiKEiqXSBoa3Eog5hDKiMHq3nY4bTG/7J3Hcc+INtRTLZdxFm5qvLldHLTSGKoY6ORuRDsj3g7COYyK+mza3P3L0VpHo3TYhHqVEYdb0XjJ7P5XfDZyXB9JdGH4ZU9S467HDXifs1m3tnwcDkR3cQurDkmTmz4/FEum1DffawXdeinD3wYfGZAQ6Vzp7HaGusGebWtPiuQaPQxGupRO0OjMzGuB2Eu7LL8tYtvyXo8KnNddLcM+RERc7oEREBERAREQEREBERAREQEREBERAREQaeM1v7PTyzfw43v7y1pIHibBeZqwbzmd54neV3fpSq+roHNvYyvjjHnrn3MK4VPEZHtjb6T3NY3vcQ0e8rp4Z1tz81/lp3PopwkU+HROtZ896h53nX/d+TA33q4LFSwCNjY25NY1rGjk0WHuCyrnt3dt5NTQiIoSIiICIiAqD0yYd1lGycDtQStJP2Jew4e0Yz91X5Rmk1B+0UlRDvfE9rf5tU6p9qxVsbqyq5Tc086VF9W4NiMwRtBGwhekMCxAVNPDOP8AyxsktwLmgkeBuPBebo3azAeIXaeiCt6zDmsvcwyyRHxPWNHsyAeC3551thw3vS7IiLmdIiIgIiICIiAiIgIiICIiAiIgIiICIiDnHTLUWZTR+s6ST2A1o/7Cud6HU3W4lSMP8YP/AOIGX+xXPpilvUQs9WIu9t5H9igOiuHWxSM+pHK/+nU/vXVj1xubLvkd3REXK6RERAREQEREBERB5qxKn6meeK1urmlYO5r3Ae4BdC6DqrKrh4OilH3w9rv+tvmqhp3FqYlVt/3Gu9uNjz73FTfQtPaumj9anL/+ORg/+i68+8HLh1m7OiIuR1CIiAiIgIiICIiAiIgIiICIiAiIgIiIKNp5o0yokM8hkFomRs1C2xLTM9+sCCdhGxQ3RRo+WTvrO0WaskDCdWxzjLrj0rhzXDhYK26SYvH+6b2i0nW4C7HMIvx7Xusq9SVRiYI4yWsuTYF2ZJuTntWsmVmt9MrcZdujIuburTxWSHFHt2PI7iQnp/s9T9OiIqlQ6TPGTwHjjsPuyKstHWMmF2G/Ebx3hUuNi8ylbCIiqsItLEMUjg9I57mjM/oqzXaWu+pZg83e/JWmFqtzkXNFzGp0nfvld7RA8LbFhZpW4bJXe0fwVvTV9RtaZaJwy1E9TLJKxziwMDYyWuDYm56+qRfsuyvuUb0Q4M4Tuq7O1SJIWOFtR0ZLTc79bWY3LnsUxRaROq7xOcHWZI8bL5MI3bdq3+iN4/09jbi+s51t9nHI24FRlcp1tOMxva6oiKi4iIgIiICIiAiIgIiICIiAiIgIiIMNXVNiaXvNgPMncAN55KmaRaSyXLGHUG+23xKm8VPWylp9GFofb7ZzB8BZc4rpda7vWe4eVvzWuGPyyzyZIp7rO6Swv5qNp3rZnfZpPAd61ZsFZiQbvWpHjI4rnmJY7JK4luTb5cbcVrw4q8Hte5NDrdJiAO9TmG4i6Nwcw2I9/I8lynC8VvvVvwvEb2z+fBB2XDa5s7A5u3YRwKj9IcbEA1W+mR7P6qs4Pixhu5tiC3MbibZHz+KrON4sSXOc7M53O/is5x9r3PplxPGMyXG99pPHmVWf9SmqnmOmZrkZF5Oqxv8AM74DNacTZK+XUBIiabPI+sfVaum4Ro0yniBcAxoGTRl5q+1dILRlooZHGpLZSQHB4aQ1vFjb3z55X8FvY1jNNUFksMEetmwvcxhcRtvsuAP7lp4nUh5LW7Nix0FENwsmjbWrI5ZwADq2uRqjVsTYHNttwt4qf0aE8DWjVaC1oYCwAWaGhoaDYZZXta2zgtyhpQNynaSMBLpMZ8NxaQC0ovzAztzG8qfBvmFFxMC3KXLs7to+KyyjTGtlERZriIiAiIgIiICIiAiIgIiICIiCqdd9JWDf+QXN5ZewR6r3e+yv+Idismb67Q4eS5zXDVllbz1gujH2YZMtHJmpKdmtG4cQQq/SS5qwQm4UquLvYW3B3ZHwyXxZWHHqDUnkHE6w+9n+N1Dyw2WmldvmjmLHcirfhVXayp2orBo2Osc1nPPuGZ9yrYmVfXVhEY5i/h/hVDGat0jhEw3LzYchvKlsYq7X3WUZopSGeYyb3O6tnd9Y/BVq0dL6OdH2sYHkdluTb7zvcVk0xxvWd1TDkNqmMUq20VKGNyOrZc5Mhe4k7yoS2qVl1O0cdlGUjFMUwVkJOmCk6cqLgKkICqpiUgK24/SHj+BWjTlbsGbhyufh8VTJeNtERZNBERAREQEREBERAREQEREBERBTdNm9XNDLucDGfDMfiqBpLFqzB252R8V1HTmj62keR6UZEg+7t9xXN8ZHXQB42gXW2F3GOc7VnW1XKw4dPcKu1BvZ3Ef5/BbuGTq6r40sorlsgH2T8PnmqpV02WxdHqIhNGWneLePFU2spS0lpGYy71pjWdVsRqxaIwavWSncAwd5zP8Ab5qIMdiVY6X6KnaN7rvPicvdZMvYx90XjtSTkNpNh3nIK+dHWHBrgd0TbeO8+a57TjrKgcGAvPfsb7z7l1HCD+z0hdvcs2jV0vxTrZNUHIZKKowtGaXXeTzW/SIJmmUpTlRNMVJ05UoScJW/AVHQFb8ChaJSnKkaMbT4KMgKmIGWaB5rLO9NMWRERZriIiAiIgIiICIiAiIgIiICIiD4mjD2lpzDgWnuIsVyAwGJ8tM/6jiB3bl2Jc66S8PMUjKtoyP0cnePRPl+Cvx3VUznTnM8Wq5zDuJI7t614nlpU1isOuBM3aNqiqmLY4bDmPiFsyTFDV7M/krPieHicXbk8Dz5H81WoKot2qXpcQtvUy6RYq+IUro3Wc0grexOTVaG+q0D3BS9fVB4zse/NVzG5c/n5/wpt2iTT60Zg1iT679XwZ+pKvGkVVqxtjG4Kr6Ks1er5MDj3u7R/FbOM1eu8qqzFBtUtShRVKpamQSlOpGnKjIFIwFShKQFSFOoyAqTpVFWiXoWaxA8T4KYWnhkVm63H8FuLDK9tsZ0IiKqRERAREQEREBERAREQEREBERAWni+HNqYXwv2PFu47j5rcRBw9kLqWZ9PMNht3jcQsWIYb1WdtaJ+dx9U8QupaYaMNrWBzbNmZ6Dtl/suPBc8hqpKZzoZ2Et2OY7aObCcvgeIzvvjluMcsdKlW0hbmMwdhGw/keS0OsLcleqvAmSXdTSA3Fyw7c+LSq7XYRI3J0ZHdmFZVD/th+fD8lp4g/XbfgPkqQloHeqfJaz6B/CyCVopNQ/dFvJaskl3LP1J1GuGeWqbcW5H4HxWrq2KhKRpCpanKhKZylKeREJmArfhcoiCVb8D1ZCZpyp/CacvIG7aTyULhNK6RwDRdXmhpBE2w27zxKzzy00wm2cCy/URYtRERAREQEREBERAREQEREBERAREQEREBaOKYTDUt1ZWB1th2OHc4ZhbyIKNVdH9jrQTlvAOGz7w/JaU2h9dsEjHeP5royK/nVfCOX//AICsec5I2+Z/AKRw/oxiBBqJnS/Zb2G+J227rK/oo86eMQWJaK08sAgbG2MNzYWi2qTt777+K5hjuhk0BN2Et3OGYPiu2IkysLjt52/YHt3FbEMDuBXcqygiOZiYTxLGn4LFSYbD/Bj9hv5K/mp4uTUGHySGzWOceQJVxwbRCQ2MvYHDa7y3K9MYGiwAA5Cy+lF5L8LTBr0VEyFuqwW4nee8rYRFmuIiICIiAiIgIiICIiD/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8NDg0QDQ0NDQ0PDwoNDQ0IDQ8NDQ4NGBEWFxURFRMYHCggGBolGxMVITEhJSkrLi46Fx8zOD8sNygtLisBCgoKDQ0NFQ8QFS0ZFRkrLSstLSstNy0tLSs3KysrKzcrKzcrNysrNysrLS0rNysrKysrKysrKysrKy0rKys3K//AABEIAMgAgQMBIgACEQEDEQH/xAAbAAADAQEBAQEAAAAAAAAAAAAAAwQFAgYBB//EAEMQAAIBAgQBBggLBgcAAAAAAAACAwEEBRESE1EGISIxMjMUQUJSU3JzdCM0RGFicYGEkbGyFUNUY4OhFiVVkqLD0//EABcBAQEBAQAAAAAAAAAAAAAAAAADAgH/xAAcEQEAAwEAAwEAAAAAAAAAAAAAAQISEQMTMSL/2gAMAwEAAhEDEQA/AP3AAAAAAAD475HM0tFpzkTzeU4FFZ6+Kgrcbz6ED3gjeYmo19bDd0xUuWUsgudQF27XgdrJSpOjnYc4pAQj6RyPmUYfQAAAAAAAAAD475H0mvJaZVXx81QEXVzTLOvUZjvqOp31C0QmoNBXZWNXpm1cqHVnb62zNZFyDky5hgVOzTI+zQq/apmdgUYROlY60586VPsZU65kbqysTbiTTpG0nIB1SBxC2dDsomAAAAAABcj6aNXgZN05o3j5UpTjUxXfUTbhyUwIKRDUsYsq1qHVNvFoXIYAFEwAAACblM6Z8BwARxnYpOi40moCkmHx9RRN0AAAAB8d8gM2/ly3K8KUoZ4+fyDlEJqGQIa0K6VpQjgQuKQ5LoAAMAAAAAAAkuq5VodC8SrpVW4VPsZNuHYyLxiz7E3SDsqAADbAFXndv9Q0Tedn7aHXGPP2xkCEOKzbcUzGRa7/AJGJzfeoiF/JlfL2tspUY3J2stUl3ZN2u5XJ6eM2SlE7/QAAbYAAAAAABDjNM4H+wIBmJrnDLT6NSa1foITbhUdRnIB1SAAbYBn4xz7FOMq/kaBm4t3kH9f9J1xA8KydF4x8dhB6M5jLEJqKLKFUpWidWZQLt+oYUTAAAAAAAAAATYj3MvqP+RDYv0ELsR7mX1H/ACMy07CE24XINEIMDqwAA2wDNxXvbb7x+mhpGdi3at/aN+R1xNGPjERlSE1Flv1DBdvXPV9YwomAAAAAAAA43l4n3dpxAkxlsreav0KkUZTjvcVpxaOn/Kgkm3BkY1BUY+HtKHVgABtgEGNcyR182aBv7l5NicG7DInFanXEIyMzYLlpn0mkiaSaiqB6LTKo3eXiRgDK5WzPuZEdVuGrTo05/nKOZNmuNPNTnqRu+rth2Rbk3eDeDwkjkm1GVfX6w9HvZQNLlHiixwI/mXFoXoeQvpmuItLl2B4rtqkFx5Hc3JjX6by9LGV2q9dTN8Pi8j4U0bCuca14m05UgAG2QAC7hubLidcZyQrCmkacSATUdkb36qI5QTMqIqeWec8Gl9IB6+C8WQf2TK5OQssWpzVA4kJpE1dJx6JuP/KQa4GVdvto8r+RGeJg1TP/ADXPVcrpdu1dfTSQnnNfg6Ivyqf92YvZui7Wo1JlGWPJhpOldyfdrU3rXB7OPsWkP2fCk/Wexn2rqx6XDG1Qx1+YhphkHoIY/dsoimxXbZ0p2O0pTx1yxey8AAt1MEk7Zs1PmKyFzoQ50Lc6Qmoz8YTuWIdGo2bqHcR1Mi17aAbkHRQ5ncYTP2/UAej6eidayYw+U9zq0WifKu+9gDLJvb/wudJ1jpJF8Xw6Pq3T0WD4V4NrZ5N25fvrn/pjI+T9v8p8/wCJ+w9N/VNoxQMjG6xHZEJeakRkjNjQGo5HaTLIVAX6gJwNsKTPnNAlv05szrjPkOYHAU5NRYTXdt091BkD6hoAIj8s6OYwOjxPxu4uX/irj9nw+7oeynm20mbzI5jyvIuH4t9Cz/WYu29YAHSdtDbCTGEbwfaTvZxEm6rpvSQ+zK8VnaJ4pNG7H8MTIjXDpK8e1Encx/vZTDZtj3pqoR2iaTRtUzr6vNQ2wp0UA6A2wDmZdS1ofdRzvLxOuMe4jZWajc9K9Qk1LiaF1qrNStOFDLfSz9CQmo5HwXIgAKZBcYpBsaMATw7iTL58cx5XkPNqRPc/0THrNZ5Cf/LL3df4rPIYbevA5OjbCneQW4o6hVqtpUBqdI04V0rShzBDRKcwwomAAAOdqnAU9mlfEAASy4NE3EzbrkhBJ1f3AAExcmLiLusQmp6/TOJMKxP+Jgk+u1goAATS4Piteu9pT3a1goSf4Xvu09zLLXhmAAd/s7F4e5an40Ga79k27vB1lpxtZ6ZAAC8OtbizrWlvbYj4PTrtbqO3lrT2cm4anh8v+l4j/ut//QAOcd6U1zeV7GFyV95noX2dzer12tPtrkAHXGnDPN5cX4FKu3mV/E+AB3qAAA//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBAPEBAPEA8PEA8PEBAPDw8PDxAQFhEWFhURFRUYHSggGBomHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAPFSsdFR0rKystKy0tLS0tLSsrLSstLSsrLS0tKy0tKy0tKy0tKystLzcrLS0rKzctKy0rKysrK//AABEIARIAuAMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAQIEAwUHBgj/xABBEAACAQICBggDBgMHBQEAAAAAAQIDEQQhBRIxQVFhBhMicYGRofAHMrFCUoLB0fFyouEUIzRDkrLCJDNig+IV/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAECAwQF/8QAIBEBAQEBAAICAgMAAAAAAAAAAAECESExAxJBURMyYf/aAAwDAQACEQMRAD8A6BhujOGp7ILwSivRF6noyhHZTh4q/wBS4I7OXWONKK2RS7kkSaJCCI2CxIRQrBYdgsBGwEmRAQAAGHFYiFOEqk2oxirts0lHpdhJOzlKPOUcjzvxC01eosNF9mGc7b5/0PF/2j22ctbvfDcy7Vh9J0KnyVYPlrK5ZTOHLFvbnt92L+G03Wp/JVqRt/5NryY/k/w+rsTA5nh+muJhtcan8UbP0Pe6DxzxGHpV3FRdSKlZO6s9mZvOpWbOLwmiQWNIxuFzkfxG0N1NfrkuzUyl/Elk/FfQ7AaHpnopYnDTj9pLJ8Gs4vzM7z9pxv49/XXXDbAOTs3GSs4txae5p2aA8L6PX0yFhge98tETGxAAAMoQAACZEkRCgq6SxioUqlaWyEXLve5eZaPC/E/SupThh0859uVv5V9X5E1eQjn2kMS61Sc5PWlOTd9hTk+HNriJyy2vfvuY2/D1ODoydZ7u8iSq25Wv45lfffd5g5W9tgZcTiJONo/PJxgrZZvJHedEYbqcPRpL/LpQh5RRxPothOvx2GpWyjPrZ90Nnq4ndzp8cZ0YrgB0YIU4ppp7GrEhAcR6f6JeHxTkl2a13+NbfNWfmB7/AOI2iOvwzlFXnDtR/ijsXirrxA8/yYvex6vi+SfXl/D3dxCGd3lIAYBSAAKhAMQUhDABSds3sWb7jhvTDSTxGKqVL9lO0eUVkvQ610ux/UYSrK9nJdXHvlt9LnDa1RybfF35p8/fmc938NZY3Pw/bh5kHL0v5ivf35IhF+niZVKMu/29v7kr2z/Uhvy78nntHOW++zP9SD3HwnweviK9fdTSpLlJZy+sPI6ueN+FmC6vAxm/mrPXvxUu0vRpeB7I65nhm+yALCsaQXItkrCsBWxVLXhKD+0mvERYcQCLyALgAAFxAAgYAAgAKQDEwjnnxT0h/wBvDq+S15W23ez0V/E5hNcr382v1957T0nTTSHXYuclsbyu/sp2VuDyXvZ53jlffbjmtn6fU4+/LpGLbx7uPO/HL9wSvbb9fH367CUnu457bp88u5vffmQf67M/H0/fcEnu5W2PZ7932EJwc3GksnUlGmrLY5O27v8Aa2JvLnfvya+j933bTodguv0hQhm1C9SXD7v/ACv4eYdx0Hh1Tw9KCVrRTtwvuL1hpWVuAzswjYLDFcAsAXFcAAQAWkO4JBYIQDABCYxAAhiADWdJcZ1OEr1N6ptRyvnLsr6mzPDfFbSap4anRzcq1S7St8kYu/q16EvpY5diKl5Sk975Phlfu38FwK85c9t73zjkuex/07jHLEZ3aknk1bNc9nv0tB148d1uXive/m3zbTlO23us72efHw97DGp+b3bn3c9+/bv3RurX3cdz3eGXuwpvalffde/efcgJa3esvO+73+3vfg/gdatWrtfL2E93ZW1eM35HPZtJPhZ34r374HbPhho/qcDBtWlPN323fafq35Fz7L6evFcYmdGAK4MQA2RbG0KwEWxg0AF3WC5AAiVwuRGADAAEAAAHGPi7j9fGxpJ5UaSX4pPP/ajs587dLcd1uOxNXJp1ZJXSassvHYZ01lq0nq62VtZRz2ttN5eXqiMnfak/C5KOIslG1ktdppyupSSV9vBWtzHKstWaildxpxzutZXcp3d+Khv3GOtMDXBtdzyI3ey+XP8AIs1aEW7Rle8ppNW+SEU3Pu+byKk4NJO+TvbwCrOj8O61anStlOS1tmcVm1bi9mXHvPo/ReG6qjTp/dir9+85J8HdDxrYmtiJxvHDU4xhf5XVnK9+9KD/ANR2Y3mMaIRITNIiAxMBMQ7A4gRYiTjzQAZxoEAQwQDABAAAAXEAHz78QtArA4yUI1VUVbWxCioarpRnOVoPN32PPLZsPoI+e/iBj/7RpLFTTvGE+pj3U1qv1UvMzprLzKqE41BSiQcTm2yOe/6BKTdru9slyV7mFpl3ReBdarSp7FVnq5fM1dJtebz5MDtnwo0Z1Gjqc2rTxU5YiXc7Rh/JGPmeysYMFCNOnTpxikoQjFLgkrGV1WdpPDnU9QTS4mNyZBsIyuUSEqq4EGyDCpuszG6jItkbgNsCNwINmNCSJarKhAPLiJyQAFhOrwRF1WBkUAaXEwuTIlEdJY2FCjVrPZSpzqP8MW/yPmOpUcm5SzlJuUnxk3d+rO5fFDG9Vo2sltrOnQXNSleX8qkcKbOe2shkWNsVzDZHs/hvo/rcdSyyowTd9zs5NP8AFJrwPHUqetKMfvSjF8k3mzrXwkwEkq1ecbOTy37Xd2ZrM8pqujjATkdXMMi2JyMbkA5Mg5ClIg5EU2xXI6wrkVK4EbgBtnUZFtgBWSAYARGAFCAZr9K4rVWpH5pbWt0SW8nRzv4zaTUlhcPF3tOrVlwvGKiv90jlx6n4h4hTxjgndUacIW4Sd5v0lHyPLtHK3rpPCLYhsiRV/QtDXq7G1GE5PxWr/wAvQ9FoTT+I0fU7DbpN9qD2NcjUdF6sY1NWW2q9VfhX/wBeh6TTWjdZKyvZbdxqM11DQmnKWLpKrTe35o74vgy86hwvo3pmeBxCd31cmlUjutxOx0cWpxUou6kk0+RuaZ4vOoQczAqhJTHRO4gTJIKQDBIBASsAGyAQysmIAKAAKuksWqVNy+08ormLeCGP0lClk+1P7sdvi9x5zE4mdSUptqCebtuiuZglJybbzbd23vZpulmLdHCVXezqLqY5755P+XWfgeTXyXV46TPHONJYrrqtSs7/AN7OU1faot9mPgrLwKjJMi2dRCREk0EVdpcWl3EUVKVSLpztKMdVOE9zbbltW/PZtyOpaCxH9pwib+ZLVl3o5vRxkoN2zjLbGSvGUeaZ7joDpGjeVJPUc3eMJO6vbNRf5MsrOo8z0iw+pNrxPa9AdJuphtSTvKk9X8O48z0wh/ez8SPQDF6lWpDdKKfkyavFz5jqcapljVNVSxBZp1SzXTjYxqk41SjGZljI11OLqqElMpqRNSKcW9YCvGYBG7AiiRpkDEBRDEVowi5yeS92PKYzFSrS1pbF8sd0UWdN6QjOWprJU4Pbf5pb2a3/APRoR2u/mzzfLq3xHTM55rMong/iTjbyoYdfZUq0lzfZh6Kfme0npjDvJNJ+JyfpTjeuxlead462pD+GCUcvJvxMYxy9q961zZBsVxNnUDZKlm+5Px3W9TEzJRe1+8v3IHXvd7s/LkFGu4tNNpppq24Uncg0RW/xOMliaete9WEe2t8o/eXPiYuidS2JXNNGrwWIcJKSdmn6G4wdJQrwrQVoVM7L7M75x7t6/oW+YSeXvadVovUMQaSniC3Cpc55rdjeU6xnjM01GuXKdY7SudjZxmZIzKEKpmjM0i4pAV4TGVHpUMiBphK5r9PYzqcPUmttlGPe3Yvmi6Z/4b/2RfoyavIT25/isTJ3d7vZlZ58lwKFSv5vwb52e0eKm99/JS87FCdbb6rblzi8zzR3TdaKfbk4wWc2s5aq2pc3a1meRlNttva22+9m30rU7G/tNLbuvfx+U05qMk2K4OImmufdtKE2ZIyyMEpGKMyVYuNjRhp1L95miQPVNzoaprLUfGLXJp/1NZCN+8sYOWrJPca4nXrI1C7QrGrUrmejUPPPFemzrdwnczU6tjW0KpchK53jlWxp1izCqaiMrFmlVNysWNtTqAVKdQDXWXtUyRFEjo5maPpm/wDpZfxw+pu7mk6YQcsLJL78M+Ge0zr+tWe3JcZWjd3cd63rMqOnJ/YnbLPVlKPg0sj3ujcHTpq8YrW3zecn47u5GzUzzx1rjOlJ3ilvUs03nsebX5mtOzaewMMTQqUZZay7MrXcJp3jLzSOQYvCTozlTqR1Zx2ramvvJ70+JriS9YLkrkbCbyIMWIluMJKTuyIU1KxaoVb5FMcXYDdUSzOFs+Nn+pRwNTW717ubOXym4jcUX2Y9yMiZjgrJckiTPI9S5Rql6lUNPTnYuUah0zWNRtYSJqRTpzLMJHaOa5RqDMEWIrLpICA7OKRq+k/+FqctV/zI2ZqulEW8HibbVSk/JX/Il9EeDlpyhS7M5570k5W8hLpVhvvSX4JHh687d7zvwMDry2XbzvmcPEda6EtNUKnyVYt8L2fkzUaao06sbTipW2P7S7mePlPub7vqSp4qa2SaXBu68i9TjFjMEoPst25mtrRew2VXEuW30KVYlVTaEzMyFiKxiJMiBZwFXVkvLwPS4eGs0ud/A8nS2ryPXaIV2nwiLeRcztbMGNkWed6CuZqVQwSYoyLKlbSlULlKZqaVQvUZnbNc7GzpSAwUpDOjm6gFyNwOridyNWKknFq6kmmuKYwKOE9K9DywmInSlfV205feh9l/l3pmkaO7dKuj1PHUdSVo1IXdKdvlfB8Uzi2k9HVMPUlSqxcZx3PY1uknvRx1njpL1QcNxilHLfrX8LfqZK10stxCErow0xyMNSPHzLMo70QaCKM1YgW6lPb9CtONu4KxzRjRmIuGfeAoLNd6Pc6Bof3blxsvL9zxlGneUVzX1Oo6P0c4UKaaz1VJ97zFnYufbXTgYZI2dbDtbipUpM42O0qnIxNlicDBJEVlpTL1CZrIMuUJG8s1t6MhGGhIDrK511m47kQO7zpXAQAM1PSHQFDGw1asbSXyVFbXg/zXI2owrhvSPoxiMFJ68dak3aNWKeo+/wC6+TPPzo53WXI+j6tOM04ySlFqzjJJprg0eJ078PKNRuphZdRPbqSvKk3y3x8MuRzuP01NftySO3MxyRv9L9GsVhb9bRkor/Mgten/AKls8bGlnDgY40wNFeUFe26WT5Pcy20YpU2+ytryQVWp0W3YuYjCasYZZtt+Fv6nsejfQ2tXTquKhBu8XO61u7kenwfQOip9ZiJuu1shbUpLgrXu/M1MM9eH6E9GpYiqq04tUKb+Z7Kkl9lcVxZ0yrhzYKhGKUYpRjFWSikklwSMMkbmeJ1qK+F5FCthFwPQTjcq1aRLlqaebq4RFKrhD0lagUatA53EbmmhlhjJSpGwlRIqmZ+q/YqURFiEQNyM9dRQxAdnAwEMBiuArgMBAA2afSHRjBV7uph6es/tRXVy842NuAV4+t8OcA9irx5Krf6plnR3QrA0JKUaWvJb6snP02eh6ZkWTkO1jaMcomVkWaRXnErzgXJIxSiFUZ0ytVgbGcSvOBFaupEq1IG1q0ipUpGbGmtnTMTpGwlSMbpk4vVRQEW9QBw698AAbcjAAAQAAUAABDEAADIsYAQZFiAKhIxsQFGOZhmAEGCZgmABVaRhmAEVEAAK/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUQExMVFhUTFxcVEBgWFRUSFRcVFRUXFxcVFRUYHSggGBonHRUVIjEhJiorLi4uGB8/ODMtNygtLisBCgoKDg0OFQ8PFSsZFRkrLTgrKystLSs4Ky4rKys3Kzc3MjctLTAtKy0rLSs3Ky0sNywuKzcrLS0xOCsrKystK//AABEIAMUBAAMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGCAH/xABNEAABAwICBgYFCAYHBwUAAAABAAIDBBESIQUGMUFRYQcTInGBkSMyUoKhFCQzYnKSscFCQ7LCw/BTVGNzg6LRk6Oz0uHj8RUWJXTE/8QAFgEBAQEAAAAAAAAAAAAAAAAAAAEC/8QAGxEBAQEAAgMAAAAAAAAAAAAAAAERAjEhQWH/2gAMAwEAAhEDEQA/AJxREQEREBERAREQCVHOtnSYyImGkDZHDJ0hzjB+oB6/fs71qOkvXjrC6ipnejbcVDwfXO+Np9kbzv7tsbOmARNb2t1nrZTifVTe690bfussB5L5T61V0PabUzEDi9zx5OJBWgFSr8cgP5j81USFoTpVmFhM1ko3n6N/mOyfJSNoDWemqx6N9n7Sx3Zf4DY4d115grHGJ9r5HMLZaL0wWODmuIIIIINiDxB3IuvU6Ljej7W75YzqpCOuYLg7MbeP2hv/APK7JRRERAREQEREBERAREQEREBERAREQEREBERAREQFwHSlrd8mj+SQutNK3tuBzjiOV77nOzA4C54LrNZNNR0dO+pk2MHZbve85NYOZPkLncvNul9JvlkfPK7FJI4ueeZ2AcABYAcAESsaea2QWvlmJSWS6qgguVUfIA52QWyhoJtoBPct/qpq4+oeGRsud/ADiTuCl/RGokETR1hL3b7dlv8AqUV5z0ox1u0LOaRcHcCNndsWJHhvst9k/kVJvTdoWOCaJ8bcLZYTfMntQvBJz5SN8lFjEHT6uaWlpZWTxkOMbg6x7JI3juIuPFemdGVzJ4Y52erKxr2322cL2PNeTaeReg+hvSHW6ODCbmCR8fgSJB8JLeChHcoiIoiIgIiICIiAix9IVscEbpZHYWNFyfyA3lQzrd0nPnOGme6OItGwhshuL3c8ZtyIyae8ncEzmsjx9V1jOsIuGYhjtxw3vZX15n1a0uRVxOGJzzNERYEku61uR77keK9MICIiAiIgIiICIiAiLVa0aZbR0stS7Pq29ge093ZY3xcQEERdM+sPWVQpmEllMLP4dc8XPfZthfcS4KMpJLrK0nUuc44zd73OfIfac43J8ysCJuf+qrLIhiuur1P1alrJRHGMhnI4+qxvE8+A3+axtT9AvrqhtOzs3Bc91sQa1u1x+A7yF6G1d0FFRQiCIZbXuPrPdvc7+ckVVoDQkVJEIox9tx9Zx4n/AE3LZIiiot6e4L09O/g+Rn3oi7+GoJAXoDp1b8yhPCo//POoEEaqV8jKmboArLirh4dTIPe6xrv2GqHAxSf0By2q6hntQB33JGj99BOSIiiiIiAiIgIiII+6azKKJjowS1so6224Frg0nlc27yFAGi9GTSzNijY5/WOwtwtc7M7sgbWzzOVtpFl6/e0EEEAg5EHMEc1iUWiqeEkwwxRl3rGONjCe/CBdBFugdSXaOkoppD6WSqbHhBBDWGKQm5G1xLRsyFlLy5vWU4qvR0XGaWTwigfn5vHmukQEREBERAREQEREBRB026bxSRULTlGOumt7Ru2NvgMZt9ZqlyeVrGue42a0FzidgAFyT4Ly3rJpZ1RNNVOved5cAdobsY09zQ1vuolaSofclXKeP+dqssFyt7q1op1VURU7dsjw2/Bu1zvBoJ8FRMfQzoHqaV1U8duoPYysREwkDzOI92FSIrVLTtjY2Ngs1jQ1g4NaLAeQV1RRERBG/TmfmcI/t7/7iYfmoRbCpo6cZfRUzOL5HfdDW/xFE7IlUrXmFSD0GNtpCX/6z/8Aiwrj3QrvOhOH57M7hTkfekjP7qCaURFFEREGj1s1og0fEJZjm44Y2ggFx/Ic1GMHS3UmoZZjHMdI1r47WPVk2JY7biGRz2rb9LWpVRpCqphE9jWvYY3Y3OGExlz8QABvcOI8AtlqX0W09GWyzP6+ZhBabYWAjYcN+0Qc7nLZlcXQSCiIgIiIOaf6XSzRtbS0pPdJUSAW+7EfNdKua1O9K6rrP6xO5sZ4xU46phHiHnxXSoCIiAiIgIiICIiDiel3S3UaPdGD26lwhH2Td0nhga5vvBeedIvztwUndM+lOsrWQA9mmjuf7yWziCPsiI+JUUyOxOVRdp271L3Qdoa75axwyYOqi+06znnvDcI94qKI22XpfUHRPyWggiIs4t6yTjjk7RB7rgeCDoURFFEREEP9NdTiqaeL2Ii4/wCI4j+EFwsbFvekWt67SUxBuI7RN9xoDh9/GtTE1VFl7FIPQpD6aqfwZE37znn91cLI1SX0Lw+iqZPakaz7jMX8RCJHREUUREQamqOKtgb7EU0juRLomN87v8ltlptEHrJ6mo3BzaePm2C5eR/iPkb7i3KAiIgLUa2aRNPSSyN9fDghA2mSQ4GAe84eS265rTPzivpqXaynBq5+GIXZAO/EXOt9VBt9B6PFPTxU4/VMa0niQO0fE3Pis5EQEREBERAREQF8cbC52Davq5rpH0l8n0bUyA2c5nVMI2h0xEYI7sV/BB5/1g0n8olnqr/TyPe3d2CfRjwbhHgtFSMubrL0obNDVhQU0gGJr/AgEKo6fU7RfymtggtcPkGP7DO2/wDytPmvTqhHoIoC+olqHD6KIN4jFK7aD9mN33lNyhBFj11bHCwySvbGwbXPcGjzO9R/p3pdportp43TEfpO9FH4XBcfIIqSFjaTrWwQyTv9WJjnu7mgmw55KCdIdMFe8+j6tg4MjxfF91q9Ia819TC6KeU4JCBhs0YsJBvkNgIHiiawflLnvdI/1nuLnEZgucbuItuvc58VsYCCLgg92aw9HU7i3GB2RkTluFzlt2ZrPdAN7bHyPntTZTKt1Cl3okgw6PD/AOklkf5ER/w1DdUCNjj45/8AX4qedQYMGjqUcYmvPfJ6Q/FypG/REUUWBp2uMED5Gi78mQt9qV5DI29xc4X4C6z1pD84rOMdHt4OqZG/uRu85RwQbDRNCIIY4Qb4GgOcdrnbXPPMuJJ71loiAiIg+OcACTkBmTyXOaltMgmr3DOrkLo75EQR9iEeQLvfVzXWd3UNpYzaSseKdhG0NdnK+3AMDvgt3TQNjY2Ngs1jQ1g4NaLAeQQXUREBERAREQEREBRZ056Q7FLSD9N7pn7uzG3CAeRMhPuLvtY9YIKKLrpnW3MaM3vd7LR+ewb158101ufWVBqC0MIaI4wCXYWAuIFzvu43IAv4Ilc5pRjy7Mfz4q5ASRYDP+eNlRG1zjd2ayhkqiZOhFscdNI1z2CV8vqYm48DWNDTa9yLl63GunSBDR3hiAlqBtbfsR85HDf9UZ8bXBUEwvO0OI53V5kZdmdm3mSd90XWRpvTVRWSdZNI6Rw2XyjZyY0ZDwz43Wqkh3uN/wAFm1M7WC2WXkO/ny/8rS1FWXHL+e7h+PNEZD5Wt258G7PPgPirUby91z4bgBwA4LEaFsqGJB0Giqh7BZpsDtyB33tmFuWV7T67Lg4sWdz6QtLi3FexGEYeBve+IrTUoWWsXhxvpuc7GJpd7C0Fos43xAXsO0bbeRGzhzyn3U+cPoaV7dhgi8LRtBHgQQvPekRkpD6Gta2hv/pspsQXOpSdhB7To+8HE4ciRuz1JibqWEREGFpmu6mJzwMTzZsTfbkecLG9xJFzuFzuTQ1B1ETY74nZuldvfI8lz3nvcSeSw4/nFUX/AKulu1nB1Q5vbd7jDhHN7+C3KAiIgIixdKVrYIZJ3erExzz7oJsg0tJ840jJLtZRM6mPeOulAdKRzDcDfeK6RaXU+idFSsx/Sy3nn49ZMcbge64b7q3SAiIgIiICIiAsXSmkI6eF88psyNpc478twG8k2AG8kLJJUHa/63Gun6iI/NoTcW/WPH6Z+r7I8d+Qc1rlrDLVSuqJTYuyiZfKNm5g58TvPgBy9MzEblX9Ny3fZVUowtuqy+zzBguViUUrpXX2NHxPBYk95XctwW5pIQ0Bo2Dagy4WX7vxX2pqbDLxPPgPzP57Pj5N2wD1jw5DmfgPBaqqmvs7gEFmpmJVq1s3GwOzeT3N2lASSQ21xtcc2t5D2nKprADfaTtJzJQVxv8AZZ4vzP3QsuISHbIR9kBv4KwxZ9KEFyOkdukf53/FXQ+oj2OEg4HsnwIy+CzGdYADGWYuEjBI0jhY7DzCpfUSHsvgjafbikfgtwMcmI35hwHJZ3z0ueO2OK0SAjMOHrNORH+o5hYkMrmPa9hLXNIcwjaHNNwRzBCqq4QTfY4ZtcNoP87lZa++ZFiDZ43X4jkRmtI9O6q6YFZSQ1OV3t7YGwPacLwOWIHwssjTVaYYnPaLvNmQt9qR5DWA8rkX5ArhuhGqJppoifUlDhyEjBl5scfErr5PTVjW/oUrMZ4GaUFrPFrA8/4jVGmbouiEMTIgb4R2nHa55N3vPMuJJ71loiAiIgLnNcvS/J6L+szN6wcYYfSyDxwtHvLo1zkPpdKSHdSU7WD+8qHF5P3I2/eQdGiIgIiICIiAiIg4Xpc1gNNSCBhtJVEs5iIW6w+N2t948FCuivVL+OfnuXRdMGkzLXzNByp4xEzhcMMjj34n290LnaB3o7KpWirjeQ96yKs2jtxyWJWfSLJrfUb3/kiLFI3O/DYtrTDj3lauHcPErJmqMLbbztQfJKnEP2vtb/isM3ecDcgPXdw+qOZVEwBztmchuN+8cFkRWa3CNg+PMoDgGiwFgNiQwOdyHFXaeHEcR2bhxWcEFENK0bc+9ZsbgNgHkscFVgoM+OrttA/BXXODx2dvArWhyqDkFioOatPbmHceyfiWnwII95ZVZ2hi3jbzCsEdnxb+0EEr9Bd/nfC0H8Zd/qyMUTpztqZHzX4sccMX+6bGuD6K4zFoysqd56zDzEUVwfvOcPBSXo6EMijjGxjGNHc1oA/BRpkIiICIiAuc1O7ZrKj+lq5A0/UhDYW/sO810ZK5zo9H/wAfC72+skPfJM9/7yDo0REBEJWvq9N0sX0lRCz7UrG/iUGwRc5Pr3o1m2ri90l/7IKxT0l6K/rQ/wBnN/yIOtRc7R686NlNm1cVzsxEx/tgLoI3hwDgQQcwQbg9xQeXNa5S+qrHHa6aot/tHgDyssKhqMrLK1mYWVtU0jNtTP5dc8j4WWihdhy4ZeWz4WVZNJetdZLjii7rFYda6+au6LluCw78kH1jrZq091yqnIwb+GfkgtE9o/VyHfvKvU7MRtu3q1C3Ic8z3nNZ9Cy1yistosqlSvt0RUqgVQvoQV3X26ouvoKCsFY5dZp5fkf+ivXW/wCjbQJrK5oIvFC7rpuFmHst951suAcgmnVTQXU6Nio3ixMREw4PlBdIPAvI8FsNAVRkhaHfSR+inHsysADh3HaOIcDvWxWvrNEte/rWPfFLYAvjI7QGwSMcC145kXFzYi6jTYLnKzXrR0RLTUtJGRDGvlz72AhUaw6N0hJTTRRzwuLo3NaOocx7rj1RJ12FpOy+HeoTo9BV5JjFFU4gbG8L2C/23AN8boJZqOlGjHqRzv7mNaP87gfgtXUdK5/V0ni+YD/K1p/FcrSdH2lZBcwsi/vZWD/h4yt1SdElS63W1cbOIjjdL5Oc5v4IOi0b0l08kdpI5BNmOqiY+ckbnNcGgWPA2Nwe842qOsFU2jghp9Hyy4GYC90kcERLSQS1zsyL8l1WqmrkVBD1MZc4ucXyPdbE5xAGwZAAAADlvNycPUl3Vioojk6lqJMI/spnGaJ3dZ5HulC/FnFpqTdRU7eZknkHlZqqGrVY/wCn0nMeUMcdPbuIuV1SIOW/9hUjvpjPOeM08jie/CQsyn1O0ezZSQn7TBJ+3dbqWVrWlziGtaLuJIAAG0knYFzVd0gaOiy68PPCJrpL9zgMPxQb2DRcDPUhib9mNjfwCyOpb7I8go8rOlVv6ilkdzkc2IeQxX8wtBW9Ite/1XQwjdgZjd5vJHwQStW6EpphaWnhf9qNjvIkZLnn6EGjnsnpXlsDpGMqIHOLo7SvDBJFiza4FwNt44WseE0Vr7VwyB8kzpmfpscGAEb8Lg27Tw3cl1mioK7SU0dRVM+T0sThJDDmHPcPVLri5HMgZbBmSgjbph0WYdJSPt2ahrJm8L2wPHfdl/eC4GYWcDuOR79388gvRHTFq2aqj6+Nt5aW8jQBcuiIHWtG/YGutvwW3qADGHCx2FVGLJHcLCuWOutnFtwO2jZ9YcQvk1MCiKGuxWI3qt47Lu4qzTRFptu3d6zMKC01qyqZWIhkPI+GSvR5FBkL6CviBBWF9VAcqgUH1ERAJO4EnYABcknYABtK9BdHGrHyCkDXj00tpKg8HWyZfg0G3eXHeuC6JNUzNKK+Vvooj83B/WSjLH9lmdvrfZUzqLBERFEREBERAXO6waKmEra6kw9exuCWNxwsqIb36su/ReDctdzIORy6JEHNUuu9JfBO51LLvjqWmE5bcLz2XjmCtidZKK1/ldPb+/j/AOZbGaFrxhc0OHBwBHkVhDQVKDf5NBfj1Ud/wQRh0wa2QzRw01PURyMLnPqOreHZsw9W11toJLjbiwKP6WazRbxU7a8alxaQpxCCInxuxwua0WBIsWuaLXaRbxAO6yjzR/RBXYi2Wop2MGxzOslcfcLWAfeQce6c7yrTZ7uwi7nH1WgYnHkAMypj0V0T0MdjMZZz9Z/Vs8Gx2NuRJXY6N0TT04wwQxxDfgY1l++wz8UTEK6tak1tTKzrIHxQXBlfKOrOAG5a2M9vERkDayndERRQL0n6kGilNTC35tK7MDZC9x9Q8GE+qdgvbLK89K3UwMka6N7Q5jwWva4AtIORBB2hB5LlgDhnkRmCNoPEKgPw5SZcHfonv9kqVNc+i6SImaiBki2mK95WfYv9I3l632tqjh/ZJbIC0gkHEMu53A9/wVRZdAqMCyIKQWDo3FoOYtYsN/qnLysr/wAnkOREbuYxMPlmiNcG2PI/irmFZctIRtCoEZG0XHLb5ILLTZV3WQyNp2Efn5Kv5F3oMNrQM1Wsh1GBtfbvst7q/qTU1ZBjjdgP6x/oo7ciRd/ug+CDmrqQ9SejSWoLZ6xrooci2M3bLJ9rfG3/ADHltXd6pdH1LRWkI62YbHuFg0/2bM7d5JPMbF2Ci4t08LWNaxjQ1rQGsa0ANa0CwAA2BXERFEREBERAREQEREBERAREQEREBERAREQFqNN6s0lX9NC1zvbHZf8AeGZHI5IiDjq7onh2xVD2AbnsbJ8QWrXUnRridh+VW/wf+4iIOl0X0bUkZDpS+Yjc44Wfdbt7iSF90l0aUMpJYJISf6N12/deCAOQsiINPL0RRk5VJt9aJrj54gr9L0R0o9eWV3JoYwfEFfEQdLonUqgpiHR07MQ/Sf6R1+IxXt4WXQIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxEHEhUUExAQFRIXEhUYEhYVFRcSFxcWFRYWGRUVExcYHyggGB4mHRUVITEhJSkrLi4uFx8/ODMsNyktLisBCgoKDQ0ODg0PFSsZFRkrKysrKys3KysrKzcrKy0tNysrKysrKysrKys3Kys3KysrKysrKystKysrKysrKysrK//AABEIAKgBLAMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABwgEBQYDAgH/xABAEAACAQICBgYFCgYCAwAAAAAAAQIDEQQFBhIhMUFhBxMiUXGBMlJikaEUFSNCcpKxweHwM4KistHxc9IkQ2P/xAAWAQEBAQAAAAAAAAAAAAAAAAAAAQL/xAAWEQEBAQAAAAAAAAAAAAAAAAAAARH/2gAMAwEAAhEDEQA/AJxAAAAAAAAAAAAAAAAAAAGl0j0pwujkb1qnba7FOPaqS8I8FzdkRLpD0j43MpNU5/J6fCNNpzt7dTff7NvMCdAVgnnFebu8RXb73VqN+9yNjl2meOy5rUxda3dOTqrwtO/wGCxwIw0d6WI1bRxdPV/+lNNrxlDa15X8CSMFjKePgp0pxnB7pRd0B7gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEZ6e9J0Mu1qGDcZ1ldTq7JQpviocJy+C57jy6Y9MJZelg6E3GpOOtXktjjB7oJ8HLbfl4kMwi6jSXGyXmFbevWnNOrVnKdWo7ylJuUnzbfJpebNdOrc3OLwNTMa9OhRi5ScUopd0rz/CXwO4wPRBUcE6lWmpcVtdvciiLI14rgesa9NkhZn0T4qgr0+rqcouz90rHB5tkdXLpONSnOElwknF/Eo+FFS3M3GjmkuJ0cqa9Kbs324PbCa9pfnvOUetQfEyKOM19jAsrohpbQ0nheD1asV9JSb7S5x9aPP32OhKtZdj6mW1I1aM3GcXeLX4PvXInvQTTKnpTTs7QxEEuthwa9eHsvu4PybyWOqAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMXNKvUUasvVpTfui2BWPSfMXm+Lr1m769aTX2U9WC8oqK8jFy5XqU/+SH9yMVbTKwUtScHwUot+TTDSW+iXDRqYvETaTlDD4ZRfdrw2/wBpKpGHRP8ARYrFR4vD4R/dg0/iSeEoYObZTQziDp1qcZx571zi1tT8DOARBWnvRzUyROtRvVw62yv6dNd8rb4+0vPvI1r0NXcW+auQ90l9HCwylisHDsK7rUI7dVcZ0V3d8eHDuLqxEWHxDhsN1k+aVMsqwrUZ6tSDunw5qS4prY0aStS4o/cPU1Aq0miGkdPSfDxqwspLs1YXu4TW9eHFPimbsrloLpNLRvERqXfUztGvFcYX9JLvje681xLFUasa0VKLTjJJxa2ppq6aIy+wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAz9Xwtf/AIKv9kjPPPE0uuhKPrRa96sBUiLPaG08HF03Z71sflsPWkw0lzo1xVswXdVwc/fGqpRX3GiWyvnRdjnisywyUvRlUil7PUTT/tTLBhKAAIAACEuljQhZZJ4vDwtQnL6aCWynOT2SS4Rk9nJvnsi+pS1S3GKw0MZCVOcVKE4uM4vanFqzTK26aaOy0cxU6Lu4elSk/rU5X1fNWafNFiytHgXrOxNvRFnzq05YOpLtUlrUb8aTe2P8sn7pLuIUwi1JHW5fjpZTUo4qmttKackvrQeycfOLfwC1YQHlhcRHFwjUg04TipRa4xkrp+5nqRkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABXfpB0NxGT4mtUVKUsNOpOdOpHbFKTcnGfqtXa270vG3JYXDPEySd407rXe5tX2qP+S2kkpbGrorfpBgPmfFV6O5QqyUfsPtU/6XENSpB6PtC8NleY1q9OT1YUafUU9rsqyetNybu/Qkl4vkSgRDorpJPDQhWjSc3SpOjUWs03FyUoVLJN2jbdv7T89bmvSTisbJxp1Zrba1NRor+rWl/UEqcAV9ljczxPaWIxHlXqP8JH7R0szTKntxFfZ67VaPnrpv3BFgQRTkPS29kcXRTXGrR4c5U5fk/IkrK80oZtBVKFWFSD4xe590lvi+TAzDhOlzIPnTCddFfSYe8ubpv+IvKyl/K+87s+alNVU4tJpppp8U9jTAqtGNmdRkUFiacovfYwNJMpeTYmrRd7Qm9XnB7YP3NHto3X6mqlwexlaSh0SZo62HqYWb7eGqWj39VUu4e5qceSSO8Id0dxfzLm1L1K8ZUZ+Mu1B/eil/MTEKlAARAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIX6YsNCljqc1bWnQjrrnGUkm/FWX8pMeLxEcJCVSTtGEXKXhFXZW/SXOJ5vXqV5vfKy27vVhHwQWNnoxmHzfUTbSg9kr9x28sBhMftiqTb3tarfwIahN1neU5eEdnx3/ABMqnTprjVT71P8A7JlVKmI0Wpb4pwlwcW4P3o1GOwVfC7JxjWhz7M14SWx+Zz2WZ9jMu/hYnrYr/wBdXe+Sd7eScTq8o0yoZu+rqx6mtu1Zbm92xvd5+9hMcZmOWQq3nRbTXpRatKPKUf8AaMbI88xGRVdejNwqLet8Jr1ZR4r9qx22e5MpduLcZrdJb/DmuTOJzHD9fdSSjVS2pbpJfWh+a4AxO2hWmFHSmnsWpXil1tJu9vag/rRffw48+lKs5PmtXKa0alObjVg+y+DXGMlxTWxriSzmHSxB4eDoUr4mUe2p31KUuPOferW2b2txDGP0y5VqzpYhLZJOnN847YX8U5fdI2p4yGEak5LY+G1+RkZxnGKz+V8RXqVNt1G9oL7MFaK377XNTVwcVwLCN9k7xGkuZ4WEISilWp1W/Vp0pKUpPu3W8ZIscV90L05qaN14fKNaph+q6pNJa9OGsmmrK84xaezfaTtfYifcLiIYuEZwlGUJRUoSi7pxaummKV6gAiAAAAAAAAAAAAAAAAAAAAAAAAAAAAADlOk/GPB5dVa3ycIL+aS/wVsr1nUe/YvR8P1LG9LFF1svl7NWk39635orfilqSYWMqhMylK5raMzOpSuVX7KbifNTELEbJ3uvRkvSj58Vy/0/qaMKsrAdTkmmUsCuqxL1o27E9+zh4r98liaRZlDF2lTldqSaceHP9OZzUpKexmbg6ihFwa2cPED9qVlilrLZJekl3965H1Gq5xbXpW+JrnU+Tz5bn4G0w1Fu7Xdt8ANPSzmdKV9u/b+qOr1lXjGS3SSa8zj85odRUvwkr+fH98zrMug+qox49XH8EB5ZhTVkd/0LaUvDVfkNWX0c9aeGv9Wa2zprk1eS5qXecRmkbbORquung6lOpTk4zhJSjJbGmmmmgLaA1GiecrP8JSr7FKUbTS3KcW4zS5ayduVjbkZAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGt0ky/51wtalxlTer9pbY/FIqxnNHqpvxLckB9L2jvzfiZVIx+jq3nH7T/iR+87+EkFiNKc7GdQqGtl2WfuFq1Lpp2s9nx/Qqukw+DlX5Kze3fa19iMPG01F2Seze3x8rbD2+cJ1klrNJd3hbaeU1cDUV42NjlVB4uDa3xdpfk/33GNioG20AkniKlN7p0X74NW+EpAaTNKTpy27+J0OhzVeKv8AVlqy8P20Y+l+GVKezuR9dH9VRqzi9zUX8Xf8gj8z7KNepGDXo1ZRf2d9/dFG6wcFtfBbj80lqqNeVuLj/YrmLiccsNDVW+wXHhjauvJnzhsF10ZSe5LZ5frf3GLSk6r8WdU8MqdFrvjqrwavJlHfdA9XrMtknK7jiZprjHsU9j99/MkcjroRwTwmErvhLFO3lTpq/wC+4kUyzQAAAAAAAAAAAAAAAAAAAAAAAAAAAAANLpdo/DSPDypSsp+lSk/qzW6/J7n4m6AFSdIcpqZVVnTqQcZRk1JPg/zXPiamEtUtBp3oTS0qhdWhiIq0J22NepUtw5718Cu2kejuIyGq6danKEluvua74vdJc0VpiUKpmRnc1MJapl0qoHrXV0NH6/yTEa3dCfxVvzPycro+8LhJU05tNa27w7/Mo+85xXyl3PHRqr1FSUuS/FmNi5nvhIfJaes+O3/AHvnuZdZVW3m/gl+DMNVnVd2YM71ZOT3t/wCj3p7Nn7fIDb5XLtX7t3+TrMNX+ULa9iVl4X2nG4Z6hIfRTkss9xHWSX/j0GnLulU3wgu/1nyt3gS9onlvzVhaVNq0rOU/tTbk0/C9vI24BlkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMHN8ow+c03Tr0oVId0lu5xe+L5ozgBEue9CVGu3LC4qdP2KsVUj4KSs0vG5wmb9GWZZQ3ei6sF9ejeqrfZXaXuLKgLqrNHBU8E/pVPW9WcXBeae1mTjsV8pSSV77Fz8CzkoqW9Jn51a2bFs3bN3gXTVXcbkEsk1Z4ujVjrK9OGq1GV92tUfZX2U2zWYupLHPckuEYrYi2dehDExcZwjKL3xklJPxT3nNYro9yzEu/yVRfsTnBfdTsvJDTVZZYZ62rFOUuKir28X+RsFk8qC1ppJ8Fx8+4sjDQjL6cHCOGjH2lKWuvCbbl5Xsa+j0a4CEtaSrVPZnU7P8AQot+8aahbQ/RHE6WVdSnFxoxf0tZrsxXdH1p+yvOxYvIcmo5DQhQox1acF5yb9Kcnxk3tbMvC4aGDgoU4QhCKtGMUoxS5Jbj1IaAAIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExIWFhUXFxgaGBcYGBgaFxoXGhoYGBYYGRYYHSggGhomHhcWITEhJSorLi4uFyAzODMtNygtLisBCgoKDg0NGg8QFjgdHx03KywtKy03LTU3Kys4LTcrListLTcwMTArMSsuMywuNTgrKy03Kys2LS0tLS0rKzAtLf/AABEIASUArAMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAwQFBwIGCAH/xABIEAABAwIDAwkEBwQIBgMAAAABAAIRAyEEEjEFQVEGByIyYXGBkaETQrHBUmJygpLR8BQjM+FDU2OissLS8SREc4OzwyU0dP/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABoRAQEBAAMBAAAAAAAAAAAAAAABEQJRcSH/2gAMAwEAAhEDEQA/ALxQhCAQhCAQhCAWNSoGgucQALkkwAOJJUTym5RUsFTz1DLjIZTHWefkBaTu7yAaU5UcqK2LdNepDJ6NIWYOHR94/WN+7RBbmN5f7PpGDiA8/wBm1zx+JoynzTQc5uANs9TxYQPMqha21qYtM91/gk2bTYdcze8W8xPqg6GZy/wZ95/flHyKd0eWWCd/TR3td8Yhc65jq0xPDQ/n3rynj3gwSg6ew21aFTqVqbjwDhPlqni5jobTeN6n9k8r8TRjJVcB9EmW/hNkF+oWmck+X1LEkUq0U6psD7jzwBPVd2HXcdy3NAIQhAIQhAIQhAIQhAIQhAJltnajMNRfWqHotGm9x91o7SbJ6qY52OVAfUNNpmnRJaBudW0ce5t2+DuKDVeV3KV9aq6rUMvdo33WM91o7B6mTvWpOLqklxtw3lFIGo4vde/meKVrOgIIvEmNEpsupMtJnePgR6j1SdcLGg7K4EbkEtTJZppvG7vHApySDBH67E3pVA4SDvjxuY77HyXtMwew/Higk8OAU+p0lEUasJ/RxCB87DkajzVqc3XKs1gMLXdNVo/dvOr2jVpO94G/eO0Ems6dXOyd47Sd3COzedV7h8QWua9hLXNILSNQRcFFsdDoUXya2wMXh2VRAdo9o9146w7t47CFKIgQhCAQhCAQhCAQhCCG5XbW/ZcLUqA9MjKz7brA+F3fdK5j2ziTWrZQei2R/qPnbwVs89W3MpFJp/htn/uVLN8Q2/3iqdwFO2bj8AgXcQ0JjWqpXE1JKakIEySpjkryar7QxDaFAX1e89Wmze53yG827o2jSL3BrQS4kAAXJJMAAcZsuoObzkm3Z2FFOAaz4dWdrL46oP0W6DxO8oM+T/IjCYXCHCCmKjH3ql4BNR8dY8IgRHVgRe6p3nF5FO2fUDmS7D1Ccjjq06mm47zEkHeAeBXQ6juUOx6eMw9TD1Oq8QDva7Vrx2gwfBBy2x1viinXgxwS20ME+hWqUagh7HFrhulp1HEHcd4MqPxViDxHqLfCPNBP7MxgDgDobeO46hPaz8ryN02jSOxavQqlbLjw51OlWywCI3nxJy8ZF3Gd1gs35WpNnjeea3bfs8SaDj0Kwt2VGglvmMw78qt1czYLFOY5r2GHMcHNPBzSCD5gLpDZmMbWo06rerUY1w+8AY71pk5QhCAQhCAQhCAXhK9URyuxnscHXeDByFoP1n9Bvq4IOd+cXahxGJJB673P8CctMeDQoWocrY8AnO2mzVDzpJA8BA/NR9eqCgRcVgvXFeNEkACSSAALkk2AA4oLK5j+Tvt8WcS9ssw4BE76rup+EBzuw5Vf61Tmy5PnBYCnTe3LVfNSoN4c6Iae1rQ1p7QVtaAQhCCpud7kRWq1BjcLTNQloFWm2M8ts2o1urrQ0gX6LYBuqfxdIwQQQ5jrhwIc33XAg3BnKCDwXXK5150cB7LamJHu1A2oPFgJ/vscg0yixbLsyhTdQfLaYeAQHF0PMEVAA2Lz0xmt1QN4UNQpqSw9JSzVlxnRpq6uavG58F7M60nub913THh0iPuqo6FFWHzU1statT+mwO8WGP8AP6KostCEIBCEIBCEIBaXzrYvJhGt+lUE/Za1zviGrdFWfPFXvQZwa8n7xYB8HIKpxeDFRoa6RGhGoOkqPdyeaf6R3kFNhpOkEcZ/IFZhjuDfxH/SggW8nmi5qGBrYA+asbmS2Kw1/bGmJZRDpIkh7yMsE6WDxZanjKTjTeAIJa4AyLSCJVs80WFDaVd8avazwY2f/Yg39CEIBCEIBUpz54cMxuGq/TpFp7qb5P8A5VdarXnr2DWxFKhVpMDhQ9qaji5jQymWtJccxEj93oJPYgpOliyDBbpbyUjh9odiZur1SZFOlYAdeC6BGY5hqd8LIY6qP+Xae6rT/JBOYfaTeC2/kBtRoxtITGfM3zaYHmGqu6W0378I7wqUz/lUlsvakVabvYVaZD2EP6JDSHA5jBmBrYHuKDpZCb4DHU69MVKTw9jtHDsse4g7inCAQhCAQhCAVPc6tcuxhadGsY0eTnz5ujwVp7cxZo4avVGtOlUeO9rSR8FzLiKebGUajiXOIqZi4kkkN1JO/pIJt1Of1qshT1Pl+vkvGsHAJRrBwQY4elAj46nvnyVu82FENwII96pUd65f8qpjbWOdh6RrMjMxzCA4BzT0hIc02IIkLovZ2GZTptZTY1jAJDWiAJuYHeSgcoQhAIQhALV+c4//ABmJvHRb/wCRkhbQVoHOnyhwpwNfDtxNJ1d3swKTXtL7VaZd0QZENk34IKg2HBLhr/vCfOZLnCAIIGnYDPr6KO5Mdd/cd0e9696n8FizSqPIAN2m4+rEjhvuPzUpDD2A4N/CF6zCtm7Wn7o32U1T2qQIyDU74NyDOaJzWmeIadxBTxmM9oGjJlhzdDaxAgCLee4d6m3pcnawOaaG0K1MCAKgdH2mgf5FvS0Lms/5j/tf+xb6tIEIQgEIQghOW5jAYr/ovHmIXPnsSXseBOXNNwD0hG8jguheWbM2AxQH9RUPk0n5LnU41okAzx4T36HRBIio/wDq3edP/Wipj2s64Le+PkSojEbUcG5W2MAT6KJe8k33n4aIJnbG0WVaZpgHVpJIGjTMRO+FZuE56qdhUwTwPqVGuMbjBa34qmCZ8/ivHP14z/sg6R2Hzk7PxJDfami8+7WGTfEZwSyZ3ZpW3tM3C5A9p5LaeR3L/FbPc1rT7WhvovNo/s3XNM6WFtbSZQdLrQOW3Ojh8GXUqIFeuLEAxTYd+Z41I+i3hctWmcvOdR+IYKODz0mOaPaPMCqSRdgicoG9wMnsGtXZJsP5AD4BBM8p+WGMx0+3ruLD/RNllL8A6w+0Se1QmBGV0usAD+oCUDIsLuP6sNw9e5PsNs7e65QS3JxwLnEHcB6/yUy9rTqFqrNuU6ALWD2jrC3VtJ62/XdwTR20sVWNpAO5th56nzQbn7NnCPE/mladNuo+K0ylg3j+JiGMPa5s+qm9lCo0j2WJo1CNGuyOB7MunZoUFm83u2KNB1RtV2X2mSHHqS3NYu93ram1tVZiofaWNhvtWUfZuH8XDTma4DWphqh1jU0nQQJy2aVtfIXlg0BjC/Nh3QGuP9EdA0zoybX6vdoFmoQhALxzgBJMAaleqsueHlV7KmcJTdBcJqkahmuTxkT3jtQa1zkcvquLf+x4In2RJaS0w6uR1ulbLRABJMiQDJDZmtaRyhxzAmYBHVMWkSBbh4pzgcXLHgWdWkVHb20Gn+Ew7muMZjv0sA7M0xL5JHdbs/QQYZpPj8kDceCSB39vxSo+KDxx1SL3+C8xOKDZAueO5R9TEFA+9p+u43Tuk2LnXd2KP2bTzEk9Uepiw9FIGSbak2jedwQYtYSbd5J0A3k9iXNoAEl3VG8/Xd2cBu1WeUNB3tBv/aP3AcWN9SnuGp+zBq1IzmddBvN+A3/7IPKNBtFpe8guiSToBx7vUpjUfUxHFlLyc8cTwb6d6WpUDXPtalqQMtabZ92d31dwHhxWT6hqGG2ZI01N43aa+G5A2DGNsxskeAHef9z3JUUHus5x+y3ot37hci3vHwWbWgQALkcYjQGwv73mNyf1qeUxIPH6Ot7gwbON54G6BtQ2c0aAdgA7yPgeHenYwbdIBBJsQIM5wOAN8okz4EyvKbSG5iJve03Ak9EDi11gDrIKUmJvb3iTOgAJcZ+iabjLhIGYCxQPcHXc3oN/eM30nS6RAPQtm0kCGNbLSNYlmSMHUbWpkuwdY5ajTf2bjbpd3HeONkrlmxEGJym4jR4iOlBMOIbBDmOlOcI4VWup1JLXjJUkH7lQkEgOBIky0ToDmbAXPyA2x7aiaT3TUowJmS6k6fZPPgHNJ3lhO9bSqP5qdpPo4inSqHpMe/C1O0EZqLo72saPtlXggb7QxQpU31HaNaTHHgO8mB4rlrlrtR2IrOJMuqPN+wG0dhMuV9c6e0TSwmUGC8/CI/vOYfBc44kziHcKYMfdFvWUDijTyscQfqj7IkepkpnXdfx+H+6eERTYDrAPomDjfz8tP13IALN7ob2m35rBqyqa9wQNTTSLqc2jVO3hKYClLi4+6Ld50+fogXpUgxoYN2vad5/XYnFCkbEWc6Q0/Rb77/iB4pJtPM4DSd/AC5PcBJTl/SsLF9h9Wk3TxMT22QK4OkHHObU2CG9w1d2n5yhtP9pqHMP3TCMw+k7VtIHs1Pj2L3HOIDKNIdNxAA+sdJ7GjpHwS2LikxtClwPS7PfqHtdBjsgb0COMrGq7KOoOAgOOgA+qLDfE9qHiGiNDpGhguiNBl0FidCElVIY0BvZviwM333yjj1t68rYhznXv+uyTrlnTWUDzZrAKgO5t9+640E/QE6aTELIukk3798cZ7nETbSCmlOpIgGx1OusRoYNiw633JbDkz0h2wLnSeGsF4nLDgBeUEniBlaxkcDFx0j0gYcbGcom+7UFJU7aDSwiRAG4fQsSBOQNcI0ISdStmcTYSYsBFzFrgH3SBJzAkRISrmRljcAfpZSc0eEBzdGZmuInM1Bmxp047mtu4gXLWwZMQ5vRfBD2F2iSqvyubUlsHouIgtuNWnNJaA6bPnI86FtlyDpxvc2i0OdYyNGl+V9sj8wLSkseJYYnsv0jDjIkTMOkQHPAJcIaHAIH7cT7HEmtBvRbWI3+0wjw7cYJIDdLFdGgrmqg/P+zH6XtWm0WfRdugWmlp4ahdFbJqZqFJ3Gmw+bQUFcc7mIzVaVPcGyfNx+TVRdB0mq4748i9s/Eq4+cupOOqD6NIf4WH5qncCOi/vZ/jYPmgkMYVFn5KTxv8lHOF/H4IPGhZu1KxYvX6lBg4J1SblYOJv8h6QmwbJgamyfYjs0HysgUw7JH2jlng0Q6oR4R6pzhCJdVIsOqOwWa0d5geASRaWtIGoApj7Tuk/wApAXu0HFtNtNnWdEDeSehT+Z+6gW2SP4mIcfpMYewXrPHeTlHekKb5mq6JcSRpAaOq2d3V9YITnaLQxtOg09EQ2fqs6x1HWfPomOMqaAb4Pwyi5vpTG/ggSquM6+t7WHqG7j1r2KzoU503R2d3cf4ZixB7ElQZNh4d1gDEfY1HEFPmPyiQOHEQOM7rd2kFAphKWZzWiwcQ2SDvI90faNpMZZATzGYM04ALXTfQQdHT0Z6JJM2kEk2IIUa0nUnh2DXSe8OGpjNBBCeAF8S91t51Hbfq9ItdMCDO4oM2OaYJ7bk6iJcCQb9GCQCeqHAWKcESTmPV1JMZYjNewYbMdIyQYcCQSkHMyhp3kwIMXmWxJJAzEtA6QBdEEOstRAMZZBEARuNwyBIgg52ZZYeswgy1AsGltiJ3kZQJdJnomwk5iMwjNmb7SHhJ4vqO0ILZkkkFmUAOJPWEZWkuzS0sOeWELOQBfqjtgARxOXKWiDP7txZBlzqZXmOkMcCLgk9ocZvoAHOlwNmHMXDpNeCgT2W85aBOa1Vx6XZRrknrGO0WvfQgnpHZFPLQot4U2DyaAub9i4fOKbG2LxUymDclppg3Am9W2sTG5dNNEWCClOcvDh+0qrCTlNFpIFsximMp4t0NtdDaZqbCthtXsaT+FzH/AABVx86TMm06R3VKBHiM/wDoHmqlp04rvYdHFzfxgs+YQOMUNFGvH69Sn9J2dgJ1j1Fj6plUH68ggxavamqxC9q6DsQZ4ITUb3z5An5J0KcvAIsSJ7rSm2zf4g7nfAp7xI1DXeoIHqUGWV7nNiDMvvNi+27W2XyXuBzOxMucHeya54hsDMD7OnvO8yE4Ycr3u3MFvuNskNknK2s/64b4Umyf7zmoPZzVHncIpjjAu466G3kUwrVMzuBJ8b9lp8r5DvCdUJFMb5HxueI7N2vEJmGnT+YPHSR9LcOsCgdYdo36fL89dwnLxWbXFxk+I1HcJJ4EC4kEbwhjDlzagCJ7TJ3WgwdI1le0d19Y/Wt7ZSYJ0kb0EhgmsHSdc7hx4bpMx6hO2QXDMIboLW0gb7WJ8bQvCQKgvYNtxAix1+jGoHV3ELOq7OQG34kSRu37xcEXmCOCBLFMgkEE9gvuhwLYl0ibEGYIsQCkDiBprmtqTIdDTBBu0gsNjBsYDgVniSJdGg1nQXB6UcOiSSAQCHA6prR6TyT6kybGRYh2912yRkzCYIQStGvYOJykZHE/RkS4z0YBgmwYwwT0+mxGKoB7Cyw6RYNLBwADYt0bshvRaYZlDyGOf5gMHVqPDaYa55lzWy5r4npOMMyMLoDgQ5omHEQ8tWVXD1KT3UqlPI5ob0ZpuAa4Ho5WOIynpcARLYBawmbNxcual+b/AAGfG0GRYOY6RpIJrOvvE0WiYB6QkTKvxVXzO4DM+riDuEA6gl5G/iGUmmf7XtVqKoqznyw+RuExQ0ZULHdzocPRj/NU1t1hZXzDfv7ePoPNdJc5Oxzi9nYim0S8N9owDUupnOGj7QBb95c3Yw+1otcLkAebbfkUGUiXx7xDx3P1Hg4OHgmtZv5op1Zph29mv2HEZvJ1/vFK4gWQMrj9b9SgHcioPmfkFgHIF9mWrAHg4f3SpMthwHEt/wAQCisO8B7HcCPLQjyJUs90OAO5zfiEHjXdGoeJ+LgD6JvQf/ws73Zz+J8fBiypu6B+18yUhTd/w9MdjPi8oHdcw0DSBv4Cw6R101ndKZHjw47o7TpHfYt4FO6lLM5omBaeJvvDeGm8XNroq0wDlG7zkW7DrbfrCD1ryG3ETrujeN9uGpuAvAIPad2h18DGYke9BdGhWNJ2UwN+o48OBmLiQZAcNQlGUhFtPA7uEQTFrgTlg3AQSmDxDIJIkzJJ9JFi2+oJEZtLIqVw0kNtIgDfrHDcSBMEAxMApi1pt6b9eF5PZDrtJBEhZimIvEGLWIJIgC8BxI6Nw0uFiZAQZVKlp8uO8WjQ9YWjKZBEFe4Jhi2puJsNeiSIiM1wYInM0xmCb46SPEbyZJEC51MaB05oAmQk8PtEAAOB7IEjSxgEAmJHRylzeLmoNzpYltKk9uGcTUqBs1HAsLKRtTAzX0BAOpgnUACErOMHJYu6LJOlg1pkE2DWtJLSLNBiZTLDY5jiIkT43dGa7dQYBMAB0B0NeJO18hdjftmMaCJptlz5uC0QXTaDmlrNbio47iszjjXLlatnm/2U7DYGk14aKjgH1MumZwAAHc0Mb91bGhC0yFzXy02H+wY+tQAik8+1o8Mj5lg+yczY4NHFdKLSedXkp+3YXPTE4ihLqcauaYz0/EAEdrRxQc6PZ7GqRq03HAg6jxHzSo0y6wOieLd3iND3J5Voe3pQP4jLjtH60/moyg7MMpMEGQeDv9J3+HBB7VZ+vkmjvkU+dcaQRYjgU3rN+SBCfyU1TqZ2tdv3/aGvwlQzm/Epzs6vByk2Oh4O/mgds3j6w9SmeHqfuRrLY01sXadqe41pbldxF+8GVHxBqN3ZifA9IehQSrtB3DcfgQYi9uxINdJjz0Iga6Ej0HWaUUQHUxOoMbrGxG8QR/lB3lBdqeMAfKJtOsX1sUGUzO/s3brGJEXE2EZswT1jY3+fmT8CYPaE1wzZI9PWMs3i5ggnXKU8B/Q9P5SN8FBi59zpAnNPhOaNBxkb2uB1RUdJLjbXiLHWYkhukxmFg8b0mDp2mRBjfAy3teQCD0TYiCgOmI7xu0Oojq3MSIcxxggtKDNx3nSDM8DBdMWAOpiWmz2wZQaYJuL3F/AkOi4ixMXbZ7ZBcF4DwPbI6OhiRFmw7U6NcYcMrl5XMDKLEC9iAAN2USWhri0x7mYwS0oMWszOBbpNiRYmMxcSLDVrjBG8ixIXQvNxyd/Y8KC5sVasOdIhwFy1p7ek5x+s9yr7mn5I+2q/tFRsUqZsCIzP1DdSYFnOExOUC2YC7EAhCEAhCEFO85/Is0ahx2Gb0XGarRo1x1P2XHyPfasdrYHN++pC/vs3zvMfriurnsDgQQCCIINwQdQRwVT8teb11Iur4UEs1cwXLfD3m+o9UFL0qoqfVeLAnf2HiF6T7rhDuB+RTvbGzy12aMp/un+aj6lc5YLc3rHcdUHtSnqkHU0UKwmJjsN/yKfuaBdzqY7yR6ZSgUwrjVovpm7mDOziQ2zh2mExcJyO4jI7sdq0/LwU/sLBF78zDGXpAim4NJHuh7uPdET3FrtfZopPcP6KprF8h1t3HTsjtQMtn1NWkxPGLHx3zfxI3perT4dsx6zlMkQI0JsDuSdXBVWtFQtPAuHVfl95pHvRq3WDO8FOcPXDok8L2Incfh5HiUGVNoA+Pf70wIPbYaArJ7rRM94ndewsba5SJaZAkLM0Z4/lE6ToReCDIIgrH9nvr37vXcJ0zDok8CgRn4wfekkQAZgOJFocBnEQcwSrATpcmPrXiB1ozWsM0EiWzICVbhRv4ER2e8IF4mJbcAw4Qsa2KYBG423GQ6DECQQQ6YGYOiRBQZF4aLQXazOkBwHSdaeiWZjeOi+bFTfIfko/H1Q1oy0mwXv4NEZTBtPRGURqCeqLnI7kjX2jV6pZSaem9wlrew/SqXPRG6C6JAPQGxdkUsJSbRothouSbuc46ucd7j+QEAAIF9n4JlCm2lSblYwQ0fMnUkmSSbkklOEIQCEIQCEIQCEIQa1yg5FYbFScuR51LQIP2maH0KpDl7yM/Ya7Wsc27C8wXRGbK2ARY2O/culFTvPQ3/iqf/5x6VHSgrSnQe2zmB3l81uWyuRuMeGup4VozAEEjKIIkXIg+a1itmc4HtC6R5Of/Uw//Rpf4GoNH2RzbVHEHF1+j/V0rT2OqHTwHiFtG1uRmEr4b9m9kGMElhaOk1x96Tck75md62FCDnLlNyTxezszXZjQdYVWdX6sg2BvZrt+hMStTOGdM6/WYL/epcfsroTna2l7PAmkOtiHCn9zrVD3ZRl++qLOGa0WzamLzbxugZNqOaOu0d7gzultSOA0S7K7zoRH1cjrR9V5PZ2gblYHN3yPZjmVXVH1GtYWhrmmJJBLgQZuOj+Jb3g+bHAMu4VKvY+oY8mwgoehgq1ZwptDnvMQxgLne7BDGCeiRIc7QG5Vk8j+aRxIq405G/1TXD2hnc6o21Ma2ZJ+sNFbGztmUcO3LRpMpt4MaGz3xqe9O0CGCwlOixtOkxrGNENa0ANA4ABLoQgEIQgEIQgEIQgEIQgFpHOxsVlbCGvpUw/SBmJYSA9hPkR2tHErd1G8pcE6vhMRSZBe+k9rQSQMxacskbphBRXIfZzcXjGUHGGkuJg3ytGYx8J3TK6FpsDQGgQAAABoANAqd5ndmvOLq1SIbTblMvLjmfpbfZrrq5EAhCEFV899Nw/ZqvuAVW9znZDMdoB8lXNi0Ni+gjfOluK3nnz2lNXD4cO6rHVHC1y45WSCL2a/R0300T/md5PNLDjKrAXA5aM7os52U+9NgZ0nRBuPIPYxwmCpU3Nh5l7xvDnbj2huVv3VsKEIBCEIBCEIBCEIBCEIBCEIBCEIBeEr1MtuYj2eGr1PoUqjvwtJ+SDROZgTTxL/AKT2egd+ashaLzPUMuDe76VZ0dwa0D5rekAhCRxmJbSpvqPMNY1znHsaCT6BBVfLXBN2htilhW2DWtbVc0DMQ0Go/pEHRrgBOhnuVobK2ezD0adGmIZTaGtnWBvMb1X3NRhnVq+Kx1TrOcWD7Tj7SpHdLAOxWWgEIQgEIQgEIQgEIQgEIQgEIQgEIQgFrnOJivZ7PxB+k0M/G5rT6ErY1oPPDiow1KkNalWSOLWtIPq5iCa5usN7PZ9AHUhzj95xI9IWyJrsrC+yo0qf0KbG/haB8k6QC0vnW2p7HBezB6VZwb25R0nHus1v31uiq/lT/wAdtihhdadGM43W/eVPMZG94QbnyI2X+zYKjTIh2XM/jnf0iD3THgp1CEAhCEAhCEAhCEAhCEAhCEAhCEAhCEAq35f/AL3amBou6oyH8dQhw8qYQhBZCEIQeOMAlVlzTN9viMXin/xDHh7Vznv9WheoQWahCEAhCEAhCEAhCEAhCEAhCEH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQDQ0QEA8NDREOEBAQDhAPDQ8PDQ0OFRMYFxYRFRUYHSgiGRoxHRUVITIiJSksLi4uGB8zODMsNygvLisBCgoKBQUFDgUFDisZExkrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIAV4AhgMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAABAYCAwUBB//EAE4QAAICAAIFBQsICAMGBwAAAAECAAMEEQUGEiExEyJBUWEyMzRCUnFygpGT0hRigaKjsbLTByNTc5KhwdEkQ8MVY7TC4fBEVFVkg4SU/8QAFAEBAAAAAAAAAAAAAAAAAAAAAP/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/APuMREBERATja0WstK7DOhLgZo7IfaJ2Zw9be8J+8WBWjjbf2+I9/b8UHGXft8R7+34poM8zgSPltv7fEe/t/vHy279viPf2/wB5GiBJGNt/b4j39v8AeW7V12bC1lmZyc+czFid/WZSZddWfA6vW/EYHUiIgIiICIiAiIgIiICcPWzvCfvFncnD1t7yn7wQKkZ5PTPIHkEz0zyAl21Y8Cp9f8ZlIMu+qx/wVPr/AIzA6sREBERAREQEREBERATh6295T94J3Jw9bO81/vB+EwKkZ5BEQPIieEQBl21V8Cp9b8RlJJGUumqfgNPr/iMDsREQEREBERAREQEREBOXrDh1ekbW1zXUjJ2T7iJ1JA013k+kv4hArB0dT1P7+34pi2j6uq339vxSWTMGMCIdH1dT+/t+KBo+rqf39vxSQTAMDR/s6rqf39vxS16Dw614WpVzyyz5zMx3nPid8roMs+i/B6vRECVERAREQEREBERAREQEgaaP6k+kv4hJ85msJbkOaVHOXijN9zCBw2M1FpgQ+e9k92/5kxKN5ae7b8yBlnCtNfIv+0X3LfHPeSfy19y3xwN6GWjRXg9XoiVNa2Hjp7tvjlr0Rn8nqzy7noGQ++BMiIgIiICIiAiIgIiICc3T650jeRz14bPb1gzpTn6c7z66wK2a/nv9l+XMSh8u37L8uSGE1kQNWR8u37L8uMj5dv2X5czMAQMQD0u/2XwS1aHB+T1Zknm9Ozn/ACAlYWWfRHg9PoiBMiIgIiICIiAiIgIiICQNM96HprJ8g6Z716ywOCwmBE2NMGga2nmUyMZQCiWXRPg9XmP3mVwSyaJ8Hq9H+sCXERAREQEREBERAREQEgaZ7z6yyfIGmj+p9ZYHEYzWZmxmBMDAmBBMZwMpZNFeD1eiJWgZZdFeD1eiIEuIiAiIgIiICIiAiIgJA0z3n1lk+QNM959ZYHCYTWRNrTBoGsieZTLKMoBRLNorwer0RK0JZdFeD1eiIEuIiAiIgIiICIiAiIgJA0z3n1lk+QNNd59dYHDaYGbDwM1vAxieEwIGQlk0V4PV6Ilblk0V4PV6IgS4iICIiAiIgIiICIiAkDTXefWWT5z9Od5Hpp98Dht0zBjPWM1MYAmAZgWnqmBtll0T4PV5j95lXUyz6I8Hq9H+sCZERAREQEREBERAREQE52nc+SUAZ5uvSo6+sidGcjWO3Zrr7X+5TA4r12eR9pV/eaWWzyPtKvimt8T2zQ+JGZygb9l/I+0q+KZZN0qvvE+KQGxfZMPlUDpqW6U+unxS16FbPDVHsP8AJiJQ1xRlo1RxoZLaiecj7QHzW/6hoFhiIgIiICIiAiIgIia7rlRSzHIDiYGyU/WrGhr0RTmK0+gs+/L2BTJuN0rthuK1JxAOTv1DPrJ3AfT0Sp4q4szM2zmxLP0Af2HQOoCB5ZcZHa0ziXaxq9vIYKm3Sd58TDj9UvzjZkd3aAV62EkHV/SLobcfpPCaGp6Uw2y1notczBQfM7QOjm2Wey2XXlMOUPWvtmijUnRlh51endLE+Na2IFTeZwiJ9YyQf0d6O/8AQcb/APr/AKfKYHpZhNmGxewwJGa9y655F1+4HMKwPQVE4+N1PwFOZS7TOhvnWNaML9LWIqn3kj34HSuFG2po01R11Dk8Vs9YTxvV24H0rR2mLUVTtfKam4E7n7cid4PWrcOvLfLLgsYly7SNnluYcGU9TDoM+M6uaz12luRfJ/8AMouGR3da5/zU5jrEuGj9I5kWUtsOg51Z383pz4baewjs3GBfokPRmkFvTaHNZd1iE5lG6u0dRkyAiIgIiIGu+5UUsxyVRmTKvjcW97nxETnAHhWvDbft7B5h0kydLYs3WbCnmVk7+AZ14ufmj+hPkys60aeqwWHZ24Znk04WX25f99ij+YatZNNUYWotY+yi9yvG66zzcM8voUe01rC6HxGkqzitIWHRmjNzJVtKt2KU7lJJ6D0EjfwRTuMk6t6vPfZXpPSqNabWA0dgAMzZnz05jH1smyGQNlhAE+l6N0QxsXE4si68Z8kgLHDYPPceTzAL2ZbjaQCRmFCKSsDj6F0G4qFWFqGiMIenk88fiPnlLAdn0rtpugoksGB0HhaGFi1bd3/mL2a/E+8sJIHYCAOgToM01PZA2Nb2yNbb2zXZZItlsDc+IYcGYTg4rQlBZmqHyO1jtF8MFWuxvKsp72/a2QbqYToNZMQYFD1o1aXEOnLhcJjMz8lx+H2uRxTAZ5Hp2st5RjtgZlWdQZx9D6XvpxHyTGDkMVWQ1dg7i9eh1PDzEbj7Vn1S7DpbU9ViLbXYAr1ngcjmOogg84MCCCAQQRKVrZqzyyjC3PnZkz6Mxr7ju3mq0gbm8rrGVi7wygO5o3STK3LVgB0y5avgj1k5buoE/wALZdBl8wmIW2tLEOauMx1+Y9R6x1z4dqjpqxi9Ny7OKwjFL0fx1HNKsPqt7RxE+naqYwK7U5nYtHK0bW9h0Mh7QQQe1SfGEC0xEQE5+mMUUr2VOT2ZgEcVXxmH3ecidCVzFX7Vj2neBza/MO5/5m/lA5mksXXhqbGsPJV1JtXN1KvBAP6dLeYSias4E6TxNulscmWCwrbOEw7Bn5azMBagnGznbOY8dyqzPWs2aS0jh9E0HIbYsxj9CZc45+iN/axE+kaF0dXt1pUgXCaNzpwq7gLMSma2XHr2c2QHyzcSNymBN0PgX2mxOIA+UWqVVMwwwdBIPIKRuJJCl2HdMB4qIB02MyYzTY0DXY8jvZPbXkSyyAeyRXaHsmhrIGRMyUzTtTYhgS6pnjtGriaGqLcmSQ1dgXN6L17iwfdl4ykg7iZhSOE6dA4GB8V11w1lL06USvYtw9gwukq1/gX4A3SORaWvQeOBWuys57OWIpPlbgXXzFBmfQE7Otmi63uKvup0nS+Fv4c29UzSz0tjnf8A10nznUHF2VrbhrO/aPvZCvmcgjzbYZYH3qmwMqsODAMPMd4ic7VyzPDhQcxWxVD11EBq/qMs8gTNIW7NTnpIyHnMpusuk1wuFtubhShYDrubco/i2Vln01Z3C9G9iOyfJf0mX2Yi3R+jqjz8XerN6z8nXn9JZvVgdP8ARvo2ynAWY0+G6Yt5LDvuJrUkk2fRlZaV6RVPqOCwy01V1V7krRUQE5nZXdvPEnrJ35zj6LwqfKylYyp0ZRXhKRmpytdFZx5xWKcj/vXneJgYuZFuabrGkG+yBpuskO2yZXWcZDtsgeM80s8wd5gGgSFMlVyHWZNoECZhxwnTpnPoEnI2SsQrNsqzbI4nIZ7I7YEHW6nPAXWdOG2MUD0hajtWZedNtfWnybSy8hrKxHcaSw1dv/yZFW+vTY3rT7Ngb68Zg6rAG5LGYdHAbc/JXV5gMOGeTT4prgxB1ZxJ7vKyiw+6P322QPrGp1ua5ddYH0oxH4WriQNUr9g2Hq2vr7P5cQNut2LZb0Rd2agksCAR0Kp8+0T5pSNVsK+I1otxFykJgcOXrZu2tVqP0rcziX3WUh8QqMAy8mc1YZg7Zy/05z8VUOSx7LutxFdWFDfOsJrTLq32QO5qsD8jrtPd4svi26D+vJdEPooUT1J1GaY7gNkABV3ADgFG4TXY0DXdZIN7zdc0g3txgR7rJDueZX3DfzlkK69d3OUZ9sD1nnqmRRaDwZeHXM6rl3c5PasDo057pOoE59DDdmy7wOmdGhhu3r7YE+mdCg9IkGnok2mBuwlCVpXXWgSupVStFGS1ooyAA6st0+J/pETLB6PI/wArS+JQfQz/AJc+4p0T4b+kN88Jo4fttL4l/rn8yBeNWD30dlf/ADRN2plZNl3oJEDfrC3+LbsRPxvNVA2hQv7THUfZkW/6cazkjFntrT8TzDRrc/Aj/wB2/wDwtsC0GyabLJgzyPZZA8vtGeRO/qzUTRX3WfsOan7iZrvsnPvYdIWB2WvKcpa5tUINlazcorsbxSAMyCTuzJJAPAZTLFYe9ahXTutvs/xOIr2VFO1vsuAO8nxVG85SrOADmFXPrAykV6U8hP4FgXa/O25K1VbkwpV7Q9gDcvl+pXeDmQM3bPLeayCd4md99io17tfQcgi4YthWBfbK178jznJXftZZEZ5ZGUfkV5uaIdnhuXISTRSo3hFHi5gKOMC5pW9VOxz7bXJNr1ckrm1t72DaOQHiqDmQAB0TQ2IsB2dvEKRxFjVMfqjKcCipchzF9k6WHy3AdEDqJYWyJbM9ZkmqQqZNrgSHuCIztuVVZyepVGZnwjWoFrNWqD3QSy+wec1/lNPr2uF5TRuKA43ouHHXnewqzHmDlp8o0nlbrDuVgMDhK6uzaIL7vpssED6XqHVuxD9qrEn6mYfZwgY8bWZvoG4fdPYHJ10TK+o9DofqsPikHDvsNhW6sXhf4bcqf9SdvXqnOiuwf5b7/Rbd95WVnHO3yQOgzdELJ++qPKJ9YQLQbN2+R7Xi60FiVPNc7SnrR+cp/hMivZAxueQrGm2xpHcwNDGa5sM8ygFEk1LNKCSahAk1ybTIlQkyoQJ1Bk+ozn1SZRx3nLt6oHA1uxAbE4LD8RWXxlw8wNVSnz52t56pSdGaIuXEY+28vZfdiAibm3rkCAnUm3Zsr2Dzyz6NtOJvvxni3MFoHVQvNr7RzOcR0G4y46Epyq2/2nOHoeL8XrGBKwWHFVNVY4VoqDzKMp7N0QIWmcJy2Gtr6WU7PpdEoGBtJw9i+NUdsDzbmE+mT5/rDhDhsbtjvd+bD0vGEDVoW3/DVp04cthvVryan7F6vpBkl2nGwtgpxeznlXiuTq81oJOHPtZ6T1mysncs6zQNbGamE2sJgRA1FYVZtynoWBiizfWs8VZuQQNtYkyuRaxJdQgSa5x9a8XmiYOvfZix+tC8Rhc8m8xcjkxw3coR3Mn4/H14eprbMyq5KqJvsvtbclKDyid3VlmTkBnK5oyl7bLb7znZYytbyfDlNwrw9fA7IGyo4E8TvcwLBo/BAlKBvGWdjfN8dvpJ2R2HPxZawJC0TgzWhLZcpZk1mXAdSDsH3knpk6AiIgJzdYNGDE4dk4OOdU3kuOE6UQPkuMwvK1PTYnOAesqdx37mTs7D0GTNDY83KVsOeIpA5XoN657K4n6eDDxX6gyZ2nWjQZf9fSudg74o/wAxR0jtlJxGHYsl1LcndWSwbJWzzGywKncwI5rKctodTAGB3SJjsTTorSC4g7GS03gHOhjmzZcXpJy5ROvxl8YcCZuzA0bEyCzbsz0LA1qs2oJ6FmxRA9QTbbiK6q2ttsWqtMttyM+O4BQMyzE7goBLHcBOfpTS1WGIRy1lxAYYavZN5U8C/RUnznIz6Ax3Tlimy6xcRiyoCZ8jQm0KaNrdzPGLEbjYRtNwARTlAxtsfGXixxya1huQqJVlwtR3NZYRuNrAZZ5kDuV3BmN01f0WAFsZdkL3hDx38bm+cegdAPWchq0PoYnKy1FrXNWSoKFzK7leztyCgDoy82VjgIiICIiAiIgJwNOauraTZTlXb0+RZ5+o9s78QPluk9HAnYxFZqcEMp4HaHBwekjoYEEdBEVYrGVbs68cnVaWTE++QZn10cnpafTMVha7V2bEV16mGYnCxWqdZ302PT8089P58IFYTWGrhZRjKT+7S5PoNbbXtUTI6xYTy8V5v9n4z8vKdTEavXpxspYei01DQN2f/hvYfhgc19Y0zyqwuMuPW4qw9ftLM/srM1WXY27cXTA1now+1y/03sNr6a1rPbLLRqxce6urUHyEJP8ASdPC6t0J3e1ef94eb/CN3tzgVDQmhQCRh6tsliz2ncnKHi7NvzbrYlmlw0XoVKiHc8tYODHuK/QH9eM6qIAAAAAOAAyAmUBERAREQERED//Z</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/519YHkvtutL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81C6mZcbyuL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71wpE+ZIehL._SX522_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71rWPpdhwgL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71AkKIudTnL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51cTQaNzmLL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61GhF+JUXGL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81uIj6rvNbL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61nqNujSF2L._SL1330_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51CXJ8Rl7UL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71AbYCAvr-L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51viTju0+zL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Ena9idWkL._AC_SL1474_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/811vxk7WqNL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51eDGtD3BCS._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61hwaBMvOxL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Nw-kEg9zL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91ZHcTf0adL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Zxf6CgI+L._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71SD0ZersyL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/618oZSHv6KL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/811IL7wDDWL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51SjhMPX7dL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71zz84UgFWS._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61zmfpxv-UL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51I4tie1eoL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71fqr3NMdIL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/7111qJrHjrL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81SuShz41dS._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51V1AtF-zjL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81Cl3cWtToL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61a5cLEUiqL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71DyBp9pQZL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61wROx9RCAL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/814hA-YXInL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71rJy3iVNRL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61LMapMC84L._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/5181ILcyQJL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Sds-JXdxL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81p77PcQRbL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/8184jGSsSfL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81Cu6K0m0+L._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71vv9lhWFqL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71IgOp+tVFS._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61aI5Bmfn4L._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71okgJyMZUL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51m-Z6LIhvL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61w0-8WAg0L._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/719wckxth+L._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71gJNl-rtPL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81hAEyhWzvL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41FnvUqEbtL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71FU3ALR7hL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81iBNkN+j3L._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71bEKvtzpLL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/615yHXH1U9L._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/719RZX34K7L._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61tmSIcuBZL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61-PgiNujuL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51xdIMnlBrL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61YqXqGHgbL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51eFbNc2FUL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71+oVKoi1hL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71n4CURmjfL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71UQWmwnbnL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71JKac3bckL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61wMOG5SLML._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81LflDMEP1L._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71BmRNeC9mL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71UnbBbPseL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61rewiTFMgL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61U6QapiqAL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIODw0NDRANDRAPEBIVDQ0ODw8ODw4QFREWFhYWFRUYHSggGBolGxgVITEhJSorLy4uFx8zODMsNygtLisBCgoKDQ0NDg0NDisZFRk3KysrLSstLSsrKysrKy0rKysuLSstKysrKysrLSsrKysrKysrKysrKysrKysrKysrK//AABEIAL4BCgMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAAAQIFBgcEAwj/xABQEAABBAEBBAYEBgkSBwAAAAABAAIDEQQFBhIhMQcTQVFxkRQiYYEjMkKhscEVFiQzUnKSlKIlNUNEVWV1goOEo7KzwsPR0tQmNDZTZHTx/8QAFQEBAQAAAAAAAAAAAAAAAAAAAAH/xAAVEQEBAAAAAAAAAAAAAAAAAAAAEf/aAAwDAQACEQMRAD8A6BSUr0lKilJSvSUgpSUr0lIKUlK9JSClJSvSUgpSsyMu+KC7wBKkBeHaDaLPh3RiYbchm6LlY8Oe13Gx1Rc3hy4gu58gg9WQeqY6SX1GMBLnusANAsnyVmtJa14BLXAFrqNEEWCCueartllHe9MErG9rcnAqEdnyo93trmvhj9Iro2hkWXjQsBvchjhibfgGpR0lKWkYvSBkS0G1mE8t3DfMfONt++1uGmyyyRh+RG2B7j97bfqt7LBJo8+Fn6kH3pKV6SkFKSlel5dTlljjL8aNk72/sT79ZvbXEWeXCwg+9JKNxjpHgtYxpc95B3WtAsklaTlbeZcZLXB+HXAj0F8Q83sN+axmT0gPc3dmyYpW3YbNDFKL9gc1KOk43wrGyRfCMcAWvZ6wIIsKz4nN+M1zfEELnembX5h3TiDJkb8kY+AepPgRGG/Ot12f2g1GYkZmLHBHumpHua2Vzuz4JrnCufMt8ClHtpKVyEpBSkpXpKQUpKV6SkFKSlekpBSkpXpKQXpKV6SkFKSlekpBSkpXpKQUpKV6SkFKSlekpBSkpXpKQYXa79b87jXwD/PsHnSysRBAc2qIBBHaCF4tpmXg5w/8ab+zcvbim44z3safNoQX81FK9JSDRukzWJ8NuH6LK6HrDLv7rWEu3RHXEg1zPJaFjbUakJWvky5uosXdEbpHsF3a2/pk4N0/8af6Ilzp271QcCeLy0MO9wcGgk73xTzquag690c6rLmY078iR0zmTlrXPaxrt3qo3V6o7yVtdLROh114mZ7Mr/AjW/UqKj3r55L91kjnGg1jiSewBpK+1L4Z5qGY90Uh8mFBjtkx+p+AOdYsI/QFrK0vFs+zdw8JvdjQD+iashSClJSvSUgpSUr0lIKUlK9JSClJSvSUgpSUr0lILUlK9JSClJSvSUgpSUr0lIKUlK9JSClJS+m4e4rGa9qEmNG10GNJlvLwDEywWNokuPA8OQ9/sQe+kpeTE1AOhilnAxXvaC+GV7Q6N1cWkmrpfduZEeUsR8HtP1oPhrDN7Gym98Eo/o3JpDt7GxXfhY8J842leTazVBiYORkbnXAN3d0O3R6/qWXUaAtc/wATanIzcM6ZBBUkWPFUrHkCaNjI7iNimvIJ7eNV2oN+zNp8SElrp2ucObYg6Wve0EfOvM3bPDPy5R7TE+vmXJ/SQ13Vyb0Mg5xStMTx7nL0CQd48woNm6Sj9ko8L7Hfdjony9ZFF9+a1zW0erNOI9U8QFzxmqzvk6gRDrHsGNuFsTflbobxqnXws/UssZrkayIufNYMbIbfLYPAgN4jj29i+DbbqTcdxb13WtLg9wd90ugDiCaILetNHs8UG+9Hw+xOPlR6mWYskk4eyEyRzSFnVMbe7EXEcQea2B22mGOTpj7REfrXKnSmN5Zkb8MpJ3mT217j2mz8bxBIK+plHePMIOs4m1OHKQ1s4Y48hK10XzuFfOvZrjqxMx3djTH+icuJHKDndWzeleeUcTXSvP8AFbZWx5W0GVhYTdOng/5iGYCR5ceoicx4EXAbpfwJA3uF1XBB07TGVj447oYh5RhemlitktTOZhY+QYzCXN3dwlx+J6tgloNGu5ZilRSkpXpKQUpKV6SkFKSlekpBSkpXpKQUpKV6SkFqSlakpBWkpWpKQVpKVqSkFaSlakQa/tFpWbkOBxNQOKzdp0LoN4F3f1jHNd7jfJaTtBsrn40E2U6bByRE3ec3cmY8tvibc4hdWpYTbfhpmoGifud/AV58ewc/cg0DB2N1Z7mtlbp+KzteXvmI8GsPHzCzOP0dzE/D6gAO0Y+K1jvynvd9C6Aw2AaIsDgascFNIMfpWkx4kPo8O8Rx3nSHefI4ii5x7+XIAcOS+Wz2nHHwsXFlazejhjZKG8WlzWgE3QvlzWVpKQY/I0mOQbr2skb+BKxsrfIrHnZHDP7S0/8ANYfo3VsFJSDG4ujRRDdYyONv/bhjZC3yauMR4Mf2zFhjYWfZRw3SLHAF4/S4rvNLiYjrabe/fY/OwoOtP0eMtDHfCN7WzNbK0+IK8f2pYd36Fp99/okH+lZ6kpBj8fSo4xusayNv4EMbYm+QVNe085GHlYsQYHSwvYwOJDQ5zSBZ414rJ0lIKNbQA7gB5KaVqSkFaSlakpBWkpWpKQVpKVqSkFaSlakpBWkpWpEFqUqaSkFaRWpKQVpKVqSkFUVqSkFVhdtf1s1H/wBWX+oVnKWqdJ2HNNpk/USdUIgZJxvPZ1kLGOLm20Ens4cjSDaWDgPAKd09xXKNM2E1SZgM2fLhgUGxGfJl3huNt46qYNAJvhz4L2jound991V7u/7nlefN85UHSHOA5kDxIC+T8uNvxpYm+MjB9a5+OiKI8ZM2d/hj4zf6wcrjohxBZOTm/wAUYjPoiVG7nVsccDk4o8Z4v81537R4bTRzMT3TMP0FcMzIDiPMMzHQEGmmQcJB2Fr+T/EfMqh98iD4FQd1+2TCAs5uGB3nIiH1rkL9RhGuOyuti6gamH9dvAs6vlvA93Pj3cVhZZmtHrOa3xIC9OPoM2R6NTpMUZGXDDFK9hG+Hh+84NNOIAHPgDfvAdqO1mn/ALoaf+dwf6ldu1GAeWfp5/nUH+pafs10YRiBw1J2S6frX7piy5A0xCgw0DwJ4mvasoejDA/Czx/PJPrVGws17EdQbmYTieQGTCf7y1DW+kMte+PCjYWtJHXy27fINW1grh7SfcF7R0YYQILZdQBBBH3QDRHi1eLUujuNz3PjdPAXEkmDdkicT29W4Hd8AQFBg3bZ5rzfX7vsbFCB/VX1g2yzWmzMJPY+KIg+QB+deodHb+zNodzsLj/ar1w9HbeHWZGXL3tjYzGYfE0T+kEGw7I7SeniWN7GsmhDS8MJLXNdYBAPEcQeHH/LYaWjajsDI6GKHT8lumBry+QxiZ8kzt2hvyCQE9vO+zuWa2N0PJwWTszMs5pe9pjcTKeraAQR8I4nie7uVGfpSppKQVpFakpBWkVqSkFVKmkpBakpWpEFaSlakQVpKVqRBWkpWRBWl58/DZkQzY8oJjmjcyQAlpLHNINEcuBXqSkFGtoADkBQU0rJSCtLVelHMkx9Hz5IbDt1jS4XbWPlYx/Ll6riPetsXxzMVk8ckEzRJHKwtkY7k5rhRCDUthMcZWlYMz5jkuki+FdIGPBeHEFpHDi3lx48OKyL9kMRxt2Hp7ieZONECf0Vp56O9QwHv+wuf1cLzfVSyPhe0dgdTHskocN7dBoBW+1/aP8AdGL84H+2UG64uzkEXGGHFx/bDjxsPmAFy/UNQlftEzGkeXRYuoYzYG0AG71kk1zce9Zv7Xto/wB0Yvzkf7Zc1zZspmdNHI3JkzG5W657HW584eWhzX7oPF26Rw5VyQfpikpaD0WZefk+lZGdK58TXOhbE+Qve2djml5rdAAFkczxtdAVFaSlakpBVKVkpBWkpWSkFaSlZEFaSlZEFaSlakQVpKVqSkEoppKUEIppKQQimkpBCUppKQQimkpBCKaSkEIppKQQimkpBFLiWrN/4ief30xf8P8AzXbqXEta/wCoJf4Vw/ohQdsDa5UPBFalFIIRTSUghFNJSCEU0lIIRTSUghFNJSCEU0lIISlNJSCyKUQQilEEIpRBCKUQQilEEIpRBCKUQQilEELiGv8ADX5v4UwfogXcFwraWdo1zIl3huN1LFLndwiMLZPIsd5IO6IpKIIRSiCEUoghFKIIRSiCEUoghFKIIRSiCUUoghFKIIRSiCEUoghFKIIRSiCEUpSCEXmn1KCP75Pjx/jyxt+krHy7WYDPjZuL7pA76LQZlfnPawuGpak6oabnTfG396hM6+TgOPguzTdIOmMDj6XG8gfFY2Qk+wWAPnXGs/VI8jOyc0A9S/UWSU5ot0TZ28xy4tHL2oO67KZkmRg4k+QblkjuU7oZbt4jkOA5LLLW27f6a79uRi/wmSivH1V6otr8B/xc3F98gb9NIM0i8kGq48n3vIxpPxJo3fQV7AO3s7+xBCKUQQilEEIpRBCKUQQilEEIpRBKIiAiIgIiICIiAiIg1/ava7H0xo64l8z270OOwHeeLqy6qYLvie41a55qHSvlOP3PFiQ8RTCJMqRxJoD1aHH2C1u+2GwOPqs0WTLNkwSxx9WDEWFjmBznC2uaeNudxBHNcm220pmiZ+KIZcjJfA2HKJkLGUBM4ANAHGur48flIMjJtTruY4thi1LjyEGH6KwfyhF+ZUDY/Xcz7/FuD8LOzus/RY4n5l3lsoe0OBtrwCD3tIsHyXg0vIfLEHShrZGvkZIG2G70cjmEtvjR3bHig5FjdEWe779l6dD7IopZyPy2hZCDobf+yapJ/JYccf8AfXWEQcvf0NRFpH2Rz96uBLYyy/a3tHstaBqmgeh5U+mdb1m5kY8Yn3N0kSiMh27Z4jf7+zsX6PXCttj+reb7MzB/sscoNoPQ3CPi6jqQPtMZHlS82R0OON9Xqkw7utxY5P7wXWHcz4qqDjGR0QZzQepzcGbuE0D4PnYHLwHYbXMTjBGx/tws4wnyeR9C7svFreW7HxcrIjAe+KGR8bHXTntYS0GuwmkHGYda2hxCGuh1Z1cw/FGez8sC/Ir34nSdnwEx5cUMrm11kc0UmJO0kA0ewGiPk9q7LihwjjEhBk3W9YWiml9etQ7Bdrg+PhRavtDqEGQ+aNs2RkiN0Lmh59HG6Cd5rhVMA/8AiDrmy208Gpxukx98Oj3RNFI0tdG5wsceThwPEdxWbWA2S2QxtJbMMTrnGcsM0k0m+525vbvAANFbzuQ7Vn0BERAREQEREBERBNJSlEEIpRBCKUQQilEEJSlEEUuH9OWizjNh1Es3sV0LITK3j1UgLzTx8kEu4Hku4r45eMyaN8MzGyxyNLZI3gOa9p5ghBgOjvUPSNJ06Qm3NgbG8nnvw3Eb/JWwsAt1cLNn2nkfqXMsnVftZc7To4xkY8hdkYr5ZjG6NjzuuiJ3TvFrmk73AkPF8eJ9Gg9JnpGXjY8kMUbJ5BGHNlc9we7g3sAPrbqDpCKUQVc4AEkgAAkkkAADmSexfn3bPNbJn6plwlkobkRujLHBzJOpZG0URzB3Oxds2v0l+fgZeHDI2GSdgDJHAua0h7XcQOwgV7+3kuSDos1RoLLwSDzIyZA0+7qx9CDtmJlMnY2aJ8crHiw+Nwe0+BC+1LUejXZefSsaeLKkilfNN1lQ7xZGNxrasgX8UdgW3oIXzyIw9u67iCW2O+iD9S+q0zbvbB+nTY0EEcc0ksb5HNeJHeqHBo3Qw/jX7kG3yzBjXSHkxpcT7Giz9C4N0P6VPlasNSaN2HH605EjgadLPG74Np7XDfDj3Ae0Xs42+nzS3TnQxQuzj6OJWGUPjEvqOe1rrstDi73LpOj6XFhQRYuMwRxRCmN5k9pc49ribJPaSg9iKUQRSKUQRSKUQRSUpRBCUpRAREQEREBERAREQEREBERB8pMZjnMkfHG57L6uRzGuey+e64ixfsX0LBw4DgbHAcD3juUogIiICIiAiIgIiIIc0EgkAlvxSQCWn2dylEQEREBERAREQEREBERB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQERUREBASFhUVFRcVFRMTGRIPFRYYFhIZFxURGRMYHikhGBslHRUXITEiMSwrLi4uFx8zOD8sNygtLisBCgoKDg0OGxAQGy8mHyQuMC01NzMyLzItLy0tLTItLy0uLS01LS01MC8tLS0tMC0tLS0tLi0tLS0vLS0rLS0uLf/AABEIAMQBAQMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQcEBggCAwH/xABCEAACAQIEAgcEBgcHBQAAAAAAAQIDEQQFEiExQQYHEyJRYXEygZGhFCNSscHwJDNTcoLS8RVCQ2KS0eEXJXOisv/EABoBAQACAwEAAAAAAAAAAAAAAAADBAECBQb/xAApEQEAAgEDBAICAQUBAAAAAAAAAQIDBBETBRIhMUFRYbGBIkJTofAV/9oADAMBAAIRAxEAPwC8QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB8cXiqdGEqlWcYQirynJqMUvFtlY9I+ttJuGX0ddv8ereMPWNNbyXrY0vkrT2lxYL5Z2rC1Ac/YnpVm9e7ljKkVt3aSjSSv8Auq/zMWGdZlGV1jsVxfGpKXDydypOvx7r0dLybe4dFgojLOs3M8O7VtGIguKmlTn7pwVvkyzeiPTzB5j3acnTrWu6FSyn5uL4TXp77FjHnpf0rZtJkxeZjw2oAEyqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGPj8ZToU51aslGEIuUpPgkluzIKd69OkMnKll1N7O1Wtbnv9XB+9OXuiaXt2xulwYpy3isNY6W9K6+bVndyhh4N9lR4X42qVPGb+XBc2/GByu/wR8sowSW752+42ihRta354HmdZq5mfD1GPFXHXtrD8w2XxS4c/z9x+/QItcFzMyDe3r+J9E3a3u+O5yJyW39pGv43JYvdbbfgavmOWTpSUouUZRd4yi3Fprg1JcGWPpTTXn+BjY7CqSeyfky9ptbNZiJaWrEwk+rzrJ7ZxwmYSUavCnXdoxq+EZcoz+T9eNoHPOP6Nxkrx2u+D3RIZd0mznCQ7OnWjUhHZKslVaV7JKV1J+9s9Dg1tZjy5Oo6dMz3Y16ykluzSc+60ctwsnCM5V5rjGglKK9ajaj8Gyrc8zXNcctOIrTcH/hx00qfvjH2vfc1/+yqkN3Da3k/uJLauP7WMXTP8krYw/XThXK08JiIxv7SdOdvPTdG/ZDn2Gx1PtcNVjOPB8pRf2ZRe8WVxT6DYLUsM6M3end4q9S6lob7VP2NN9tP9SvcgzytluJjiKLuk0qkFfTUhfeNvmnyZiupnfy0nSY8lZnH4mHTgMXL8wpV4QnTnFqcI1IpNX0T9mVvB2fwZlF2J3cuY2AAZAAAAAAAAAAAAAAAAAAAAAAOZekOL+l5piKz3XbyhH92m1Tj8oo6VxNTTCUvsxb+Cucs5DFy773eq7fru2U9ZbajqdLr/AFTZumCoWXw+/wD5JWgt/ezDwcdn+eVySp0916/h/wAHj81vPl3ZftLgvd95h0py7Z3m7a7aeKtZq/luZ0adrL95Gtav+4xS/wArf8McR/MSaTHW/Jv8VmVXUXmvbt9wm6+JcZ22tzvtyVrGTHLK1ROcMRSpq3szlaTtdXtbxR8cZT+tjtHinuoeNtnL8+BH51aM43sn2fPsv28/tblnSafHea7/ADEz/tBnzXrFtvuP0l5ZdVpxTqVqFRbL6qTk0/NWMd04u+z+HmYmRb9pwfscFT+0/s+hKJ228395HrI4svbTx4T6S83x72YlDLZ1rqk6MdNrutJ01veyVk/BmLmPR3FKEqna4RxipNxhUk5OMU3K0XDfaL5nvOnai722qwW6g/7tX7TRG5daTs1B9zEcY0Xf9GlttK79OHzOjpKRfFFp9q2o1WTHlmsekTV6RYrsnh1iKnZ2touvZ+xq46eVr2ISrwJzLsFSqUq9RwpXpUoTVqWH3coxi7+V5N8txiMFRjh6VXRSvUlZrs6Fkoxjw35uTvuXYw7fLMdQpHqizephwlg7uK7SF46ubhrajF+NuzLEKEhjquBlShhavZKrplJQVOCakoySspLZa5fFknnmfZjgq8KEsdObsnOVowTvZ7Rc7pfEuY8kVrs5GaO+82j5XQClsg6SZliYVJLHOPZQqVJLTTk5KEItRXest77+ZHz6wMxXafpXsySXdouy1NW9r0N+aPpHxyvkFQ5T0lzOtQlifpsVCnbVHs6TlN3V7O9oqz+RG5T09zSvNUliqeqWmMW6dGylKpGN2otvg3yHPH0cUrwBTOf9N80wdR0ZYmnOUXvLsqcFvThJLTJ321PfmZeWdLM3xFN1adegowj3rwjqb06rJJNfNDmqccrbBSE+s/HqbjrpWvb2Yk5T6WZq6EsU54bslKyWmTm/rlTe2my573ZnmqccrTBSH/VTMVK1sPa9vZnfj5I/KvWvmUXJKnhrJtbxrcn5IzywxxyvAhek+ePBwhNU9alPQ+Nk2m1ey52t6tFV9KusPMlqhGvh6EHoiqkVJVdUsPSqyS1xlFfrdns/RlZ4bAQdVyqY6c9Tc59lOEqkpO71e23KWrd7N8TNvMeGsR5dRZ/nTwtOFRwvrkoc9m4tpN8r2tfxaGfZy8LClLRftJqFnfaTi2o7cL2a9bHL1DPKmtRrZrjZUlK+mE699t4NapWupaX9x4XSXFTmliMzzCdJSvaNWtJpq7pvvzsmpW+djExbztLMbOvEDkOeKx86f0l46pOMZtxjUrVKkm495Jxu0na7s3fZnVnR/NqeNw1HFUvZrU4zSfFXW8H5p3T80bxO7VIAAyI/P8LKth6kIzlBuN9UePdak4+jS0vybOaejVRbL8vZnUslc5Xw1B4fE1aL/wAOrOH+mUl+BR11d6Ov0qfNob9g43V1+dySoL73/wDRC4Wvphfyv/uZ2V5hTq303T3dndbJ8V4nkMtLeZj07NpjfZJ0+PuX9TU6MH/asdttLf8A61FY2fEYmNJa5cEvxI/LsNCpWeIhPa99DjaSbi4u9/XZ+pvpLxjrkm3qazH8ques2msR8Tuy8ZtOMm7ed1HhOPNkZ0klapGzl+q5OSv+kT8IvwJnH4KnWSU79132duPFfnwNryTDxlRTcU76lvvZKTVl4cy50zLFrVr8xE/uFbWUmImfuY/TQei0ZPtbKbf1e3ek+M+WknHRn+zq8fsVf5TdIUYp3St6bL4H1Luo0Fc1++Z2Q4dVOKvbEKv6RqUaN5KpG9WFtSqU79yre14O/wDQjMjbnVjCMptyjXSjqk7t4aSSs6a5+ZcE6Sk02r25cvgRebZtgsGtVetTptXko3vN+kF3nx4FrDijFSKQgyWnLfu28qzoZdi8NTqU6tKce3jGnBzqKN5R0ystS3dovhufHGYeoqNOlPTB0223OvThdSUfF32szbujuXf2zXnia2uOGhpjCjFum564RqqnKUd1TUJ024p96cpXuopG/YPIsJRVqWFoQS+xTpx+5FqmO9o33iEd7UpO07zKlK+vFTpKi4SlThCDjTrQqt6ElqtC/GxMZvkWZ4yrGu8JODaSce0kldK17OzLihBLZJL02PRLGGfmUM5Y+IU9knRzM8NGrH6I5KrTnTbdWzjqikpLfx5fcRz6CZm9X1D3f7ReP7xeQNuH8teT8Kiyvo1m1GjOh9GhKNVWblUWqLv7SevhZcLe8wMu6C5tRmqkaUdUWpR1Turqaauu08i7AOGPs5JU7nPQrNcVUdWdOmpO112ja2hGN1aa+yZGW9Es4w8HCEaDjJWkpSk3dxcbp69uXwLaA4YOSVI1erHM3K6dG1+dSp/MTcOiWcfR5YR/RXSbunqq619b2l9V/G5aYM8MHJKlH1WZk3fXh+N/1lbx9D9n1VZi2/rcPu2/br836F1AcUfZyS5+6weiGY0VObwKxNBOnO8JznoccLSo1HKjBqbX1V7rku9w2rfLsbRlViuxw9GzbVX9InoaTcZaJVWnulxTXinwOyTSuk3QjL5Rc6eX4d1J1Lykqab3blKVl4tW/iN7T213aR5lzFRpqrXcXUgnKUm6tRqEObcr8r8vNo84TCzqVexpuLk3LyXdTbd+SsmdMZ30GyxYdShluHjOWnhC2n+8+Hpb3kb0i6tcn7BVYYHROem2mpWildaneOq3BPl4Gs5Ijf8ADMQoLBVuzpYijOooakrR7zvOD9lWXBq6fuXp1P1c5bUwuV4SjVspxpJySSjpc256GlzWqzfNps0et1E5dUSnSxOKgpWlpbpVEk97Lup/NltpG8MS/QAZYDn3rdyh4TMnWS7mJSqLw1q0akfjaX8Z0Ea30+6LxzPCSo7KpF66M3/dmlwfk1s/XyIstO6q1pM/FkiZ9Kgy2upQ0vmpImcsoqCblJucnfwiko28fad14LY0fA4iph6jo14uE4TcZQls00bBVrqrTirt+Ki7N7HmM+C1bTX4l6O0VtHf9NnxlPtIOKdndNPjvbY94DDqnFLU5Nt3vslz0xW7t7yOy7VSio1Nm4qWlycmldpcd1dK9mfHNJSk42lNJOX6vZuXJbcjn8Vt5w7+GJ27eVOzl7T8l9xuGU09NCmnx0Jv1l3n82VtPGunHTO6lpTtKylw2TtzMPMesfE0qbp05U7x7qm46pWTtzdnt5F/plJx3tvH4RarDbLSs1WtVxcaFLtMTVpxUUtdR/VQv5am7el2apm3WHThH9EoSrX9mpVlDB0ZfuSqtSqe5W8zTciyHMczqy7arUc37bq9+nh4v7UXt2jT2oq2zvKy2LnyHo7h8HH6uGqo/brztOrUfjKfh4JWS5JHoKY5tG8OPkmuKdreVFZ904zSbtWbpQbslR7kHvdpVYtuW3+ZkBiMUqi34t7+feR03muS4bFRca9KErq12le3hfmvJ7FY9IOp5XcsHUaXHQ7N8eCUmk/XVFeRrk0077r2l6ljrHbMbJfqazujPDPDOcVWhK7pt2coqEIKcVzVoK/g/cWOUBherPMqdaE1CrqjJSTg6NNqzvvU7TurzSk/Jl7ZZCrGjTVeUZVVCKqSimouaitTSfK9yzhmdtphzdZGPk7qTvuyQATKgAAAAAAAAAAAAAAAAeZRT2aT9dz0ACAAAAAAABpPWB0Co5klUj3K8dlUXFqzsmuEt7c1zs+TqHNMgzHASSr0ZuCe1SmnOL+G6950oealOMlaSTT4ppNP3Mr5dPW67p9dkw+PcOYcLnyW1+Kt83/ue8R0maV4zad07p2fxL/x/Q7L6+9TC02/f93D5GLQ6A5dB3jQ0/uN0n/qp2fzKc9PjffaP+/hf/8AWrMelCznisQ1KMXGEtu1qPRBtvlKXtvyV2/A3noZ1a1ZyVatrpp79rNaKr8qNGSvT/8AJPveEY8S2cDkmGoS10qEFO1nUa1VGvB1JXk/iSBax6Wtfapn6je/ivhi5Zl1LDU40qEFCEeCXnxk295Sb3be7ZlAFpz5nfzIAAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMWFhIWFxcWFhgYGRcgGhgYHRodGBgbHhgaHSkgHxsmGxgZITMhJSsrLi4uGx8zODMuNygtLysBCgoKDg0OGhAQGi0lHR0rLS0wLS0tLSsyLy0tLS8tNy4tKy0tLS03KystLTUvLS0tLSsyLS8tMi0tLSsvKy0uMv/AABEIALMBGgMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcDBAUCAQj/xABDEAACAQIEAwYCBwcBBwUBAAABAhEAAwQSITEFBkETIjJRYXEHgRQjQlKRofAzQ2JyscHRgiRTY5Ky4fE0g6LC0pP/xAAaAQEBAAMBAQAAAAAAAAAAAAAAAQIDBAUG/8QAKxEBAAEDAgMHBQEBAAAAAAAAAAECAxEEIRIxURMyQWGBwdEFInHh8LGR/9oADAMBAAIRAxEAPwC8aUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKVhxeKS0pe46og3ZiAo9ydKiHEPiThQWTDzeYAktqtsAbkuRJGo1UEajWgmtcfjfM+Ewn7e+qtsEEs5J2ARZbqOlU7zRzxj7tsM13srTglVw4IB10VrxIaYmcp3BGXqIJb5ruo6qoR1DT1ltOra6wYB3+dXAt/jvxby6WLJtoRPaXgZy7ZhbXdZ1mT7dKjvB/iFcF58SMSbksA1lyslYjuIABEz5EfiTXnFC75riLlBJzZQSqyfCSZ6jqdYr3wTDW7dprt26eoCIhJJGwNxiFU6gxrIj1hNMStNc0zmH6i5d5gs4y0Lllp+8vVT6j9fIyB1q/N/LvGrdm/nwuJCMqDMC3cufeIzKGmI7hA1/Crr5O5vtY5NIW8B3kP8AUen61GpwzMbS2TRFUcVHrHT9f0+clpSlZNRSlKBSlKBSlKBSlKBSlKBSlKBSlKBSlKBSlKBSlKBSlavEOI2rCZ71xLaebsAPbXc+lBtUquOO/FvDpK4W215vvNKJ8pGc+0AHzquuOc847FyrXWCnTs7IKqfTQlm9iTQXVxrnTCYZijs7uDly2kZzmiQpKjKG9yKr7j/xavnTD2lsrJEuVa6Y1PcmEMdSGFVTe5guq6LbcZUgAQIjaCBGaBpr00r5jbxuKW0DEknIIVTroANtNP6zVwjt47mi1indr126zhYRrhuMCfMIGhCdIg5dNRUZ41iGJMgTIMgKoHQgKoAAjyrNwTA2Ye5fa9lXKMttBrJ0m4xyrqCIgk9K6wv4C46KTk0JJOYAE6hWJMmNsywNtPKjX4TwTEG2rXcyKxIQXDLGT3slqS50EnQbelfU4F2Dm8wtXbSMVkqzJmjSVWNZgFWI3+Y5PE7hWAsQoCqy5hOXRWk6zHtAgACtzl7BYq7bYILptaZpJFvQ6EsxCmI211A8tA93+bL2qhbYDQIVQAFGmTIO5lkfdn1M043izfi4FNuVBy52bXUZu9tIER5AVothFD5nXMoMsJOoB1Err8xXcxuJD2lCLZtL9lVDSYEBmc6uY+6SYjTQUHK5e4cpYtdvJbUeaszknQZUET7zoYnSpFZuXLLresl16o3WB55fUHy2kbachLeZQvZAEzJJMnXQaHX0Iy+xrr8P5fusAXzLbGoa5Maagx1885GgDEmAakxnmypqmmcxO65eRee0xQFq8QmIEez9NPX9aTFTevzLizYsqGW83aKx74AFsQSIBaCWI10kESPWrU+HnPnbBbGIYZyB2dydHHQE+frWG9PPk2zEXN6dp6fHx/xY1KUrJpKUpQKUpQKUpQKUpQKUpQKUpQKUpQKVo8W4xh8MufEXktr0zEAn0Vd2PoJqvuO/F60srhLJuHpcuyqe4Txt7HKaCz6i3Huf8DhZBu9rcH7u1DGfImcqn0JFUpx3m3F4uRfvsUP7te7bjyyr4h/NJrm4i0HTtbXgGVLqCZtXI2IJJKMQSrkmdQdQZuDGU5498V8VdlcOq4dPPx3P+YjKvtlJ9ag+Jxj3roa9dYsTBuXCzEfMmY9Nq0ZrJaQtMAnKpZoBMKBJJjYCN+lMI7hw+DtA57hu3dICiVPnoYjyhgfOTXL4pi1uHuW8ggjUyxXyMQP15QBq7VkWzmWVYFiQFUAy8+WkHSfwIMGAbMkUuRYtKrEm0jnpnzQD5wrCfYyPMGuuTduIMx7g8I7qoNJhEELMHZRNZsDhBLrfKWGTRi6uXM7ZbW/rsCJ3FfLGIt2Xc2kFxT4O2WcvViLebLqddZj8Zi7ONfsSDG+vyrFwrAh7v1l1bajUlkZiddgq7n0kV38RmvDtXuqzuYUACW00gKAPw9eoIrnPhdSGBHmCCDr6ETsetCYwy8SwqH9j2jLqJcAFm3MBdB5xM16wGEe5bgM/ZhoBYxbQxO7kIrakxM7wDNZMK4RYyh2k95+8AIgDJ4WjeXDf58BZ18pJ8hO/oBp+VEdbgdgXF7NkuX7i52Fq2URSBuxLEknWQEXNofs11cbythsIua+zF3JAt2YlSZjVxJgay0dJUzUa4feHbIodrbBgO0h1W2dCCXAJG8yoPntrUw5q+HOItWVxNu+1+3lm72Q72WO64YEvctxAIB2ggGIqjj4/i9myzNhrZWbhykpmZZHcRABIMDNDETBDZ1JBk/KHLY4mjXnxILSC9qO8DoBmBGVZVYDAPsNTlit7lDmbCYmwOH4+3bVXAW26gLbufdMpAS5OoZYEjTKYB4PMHAMVwjELetXG7OYtYgep/ZXxtJ0GY914EwZoLZ4fyjgktlBh0OYZXzjMxB3DM0kjXbbyqr+cuQX4dN/C5nwU5mXUvh/4gd2t+Z3XrIk1PuS+ebWNi3cizjBpk+y/WUnfTXKdRruBNTFWnQ79R+ulSViZicwgPw951F4LYvsO0gdm/Rx0E+f697BqrOc/h8bbHE4BTlnNcsLup3L2h+Zt9fs691utyDzoLwFjEMO1A7jdHH+f15Tr7u3g3zHaRmO94x184949U9pSlZtBSlKBSlKBSlKBSlc3jPH8NhROIvJb0kAmWb+VBLN8hQdKvjGBJ2FVbx34t6N9DsSBp2t7QSZiLanM0weoOm1VvxzmfFYs/wC0XndfueG2PL6tYBjzOvrTAu3jfxFwViVRziLgnuWRm23l/AI66kiNqrjjvxUxl6VtZcOn8Hef/wDowj8FBHnUFt4hlOZYkdGEqw6qw6qdiK93kVlF21PZk5SpMm28TkJ66AlW+0B5hgKsRmC/indy7MWuHXO5zMSNpLzI9DNZsVZDob9od2QLqTLWXOwPU221yP18J7w11cPZZ2CIrO52VQS3vA1j1rLcD2HDK9s3vA9oEPNsg51u5DlCkgCM2adRBUESfJYpnGfBrM0anQVvWrN+wPpITKpGX6wQl9SRNvK0G4p3lZiJkRIz2uJ9mguYayll8xUuw7W4jDYLcujIhK6922DAPeJBjm3rjO5uXGZ7h3d2LOfdmJPypE1fhImIlvo9jI123Zd4YApeeFtk6iRa77rIIBJtg7QTMa2Jx924MrPFsGRatgJaH/tpoT6tmPrXzBY17TZ0AaRle23guod0b8BDDVSARsI2MVggwW7hgz2nbIFiblu5E9k6gePeCBDgSOoWzVviVmuWlvWTCcQuWFcWmKBjLFQM50iA0Zh7Aj+tbV3hgtf+qurYP+7A7S+eo+pQ9z/3GStDE3rZM2w6psO0Klj6nKAB/LrEbmpmJ5MHrEXrGSe2a5ebWFEwfUsZJ9dNQQTWxwy5byHt3ff9naQd86FSzHTLvK6x9nLpHocGKFDfmylyYbLmOkboDIOuxg1vcI4f27XbOFsDENMC6C0op2zK0Ip0PiynQxViFz0amCe5ak2R9Ht3ie+ZjbvDtcsldOmv4mcAw7O+VJuEnQgOS/qFIzn8JqyeE/DO9eTLi8TcXLICIcxUwQpDuIiIiF0iJ6VGMLhsTwXGQNbhHezElMVbG7KTrmHVfEh11UmqiPvhntX+yv2biBcpuTAcK2xVJ19CWAnQwauzlTlPA9nbxGGi+PvPBnzhSALdwHyAO4O8jHi8NhOOYUPabssTbHdaAXssRqrrs9ptiNm16jSu+E8WxfCsU9srluLBvWCT2d1NYuW2OpWBo3iXYzDCgsrnnkZMYpv4fKmKAjXRLwGyXOoI1Acar7aVAeUOcL/D3azdV2sK2W7ZaO0sMdyvSDM/daQRlJq2+XOYLONtdth210FxD4lPkw8/JhoY/Djc98lpjlF20RaxaAhLkaMOtq4PtIZ9xMjQkGCIc38o2r9o4/hYF208tdsJ1P2ntA+G5962d42nQ63J3PH1YwuMBxODuAoGylnQbFHTUsv8OpEGMwAA53KnE7nD8Tc7dmw+QoMRZcjIwJIzAnQ6CVYb+cStWDx34f28RfTF4VxZuNrdBU5LgZSMxSQRcEz0mNddRRA+ceSrmCIv2S1zAyrK6k9phhOYSw1a2Nw+66T942pyPxRr+HAcu7W4HakaXBrBDgBWOkGPSd66PAcAbNhbFy4bjKIJYAAjyUAeAbAGSBAJNdDJl8O3l/j/AB+jB6Vuh3/rUL5y5HF4m/hu5iB3iBoLh8/JX9dj13mppoRWDFY23aUtduKigElnYKABqSSdBHnUlYmYnMInyVzYbh+i4ruYhO6M2maNIM7N+vIma1TXO3OHD8VeAwma5ftAs15AVTKNMuYjvnMVgxETrrFWZw1MSbNstcGYohMjrlE1hmaZw31RFdPHy6/r3dqlKVm0FK5HG+ZcLhR9feVWicg1c+yLLR6xFQHi/wAVbjnJgsPEsED3dZY6ABFMAnpLfLSgtK7cCgsxCqNSSYAHqTUL478T8FYlbROIf/hxk+dw90j+XN7VA+KcF4hiWY46+csN2bFkawLymOzbI2W00grmyxmAEnSYE9UWbjucrmKCubhtgjS1bdhlMkGSIZtI1OnoKivMVpHXtUANzMe0IOpWAAzdSwOknWPaoVxNnOxJAEAT4fOPevfCsddVbiT+0gH0Gxj1I0rnizMXOPL07mut1aWLMW9+vv8Al0bOLNts2UOpGV0P20JBKzupkAhhsVB1iD6xthVCujZrLgsjnTbxK3QOpIDD2OoIJxnDP2faEQkxmJA1G+59KcO4lcw5JtnusVYrFs6gaMhuKwV8pIDxsa37+Dy6qZjdu4bgl5k7Vgtmz/vb7C3b9ILd5p/hVq1sUUtP/s9ztgVIulrbJauayqhSQ5iAc/dMgFYivXFQzXe0uMbhYZkuMzNKHYqzkkDQ6aQQRAIIGtNOGc7pTxROct/G33aymVsuHeQyW4RC40ZXVNSYgw7NIYHrA56gAQAAPIVkwuK7JmJXPacAXrcxmA2dT0uKSSD6kGQSDsNgl8XbWhYOq3WYDMPS0ua5nGxXLoQROxOURhKrk5++WtaulGzKA0jK6Hw3Emcp8iDqGGoIFbP0Iv3rAZ7RkyYGSN1uMSFRh5kgHQjQ1iOOsp+xtteb798ZbfysKZb/AFvH8NaX0POSSOoLGO6CToTAgCSf7Vc9U3neNm872Lfic33+5Z0QfzX3EH2RWH8VYrdy7Ny5a7S0pAW52TXQoXZVZgZI/mOp/Ct3DYK3bvlABihlOUW8wliBBGWSQDO2YHeOlSrgHIuMc5GY4a3c78bscp2ABkEAjdvcGNJO7KIQ+xwy1aFtrjBrbAMy2mUOszocwgER1iZ0PUbeMu37KN2OHZLGJbs0LKBMicouNLGQDC6gycpmupzXyLc4feW6HdreZTZukj6u4IhGgBVJIlWiOhjerG5X4/huK2HweMtr2xUrctkQLgH2k6hgRMDVSJHoVEfh/wAoYHH2GW67/SApD2w2UIDMOkausn7UgHcbTy/oOK4NiwqQrx3CB9XirYOvd+/tmtzIPeUwRGTj/AsTwzFKVuNuThsRpL9ezudO2id+7cGsTmqecK4vheNYZsLilCYlRJUGGDLtdsk6gg9N12MgyQkfKnM1nH2+0tHLdTx2ydVJ/wCpD0b+hBAz8ycBs46ybN4EEHMrDR7bjwujdCPwIkHqKpHHYTFcNxagvlvjM1q8BCYhOsjYPHiQ6HfyLXFyXzMMfZzFezvplDr01mGGs5Wg6HUR7EhTuKsYvhmMAzZMQJNq4o+rxNvrptm2zWz1gjXKTYIGH47hodGs4uzqrAHNbbbMjHxISIKnyg/ZNS3mPl6xjrLWMQpjcEaPbb7Lo0aMOh9wREio1yjyNiMHcW4+KDhMwy20g3EJMZyxOnhORRIIEMYghAuD2cTw/HgXbbriFjKLQYriUzd8qqiWBGXT7J1IBANXtbJZQ4BViAYbfzytE6j8qyAAjzBr4pjQ/I/rrUGL6NaZxdNtDdQFQxVc6gwSobcAwNtDWQLl28P/AE/9v6e23p06jQ/rQ1xOO834PBg/SL6q407Md64TpsiyY1Gu2omg7rAH+xrm8X4/hsKs4q8lrqMx1b+VB3idDoAdjVR8b+K+KvlkwFrsbZ0zuFNweZ3Ntd9u9UOu4drjm5ibr3bh3LMx/wDk2segiKYFhce+LzMxTh1gnQzcug+kMLYOgidWI6SNKgfEFxGLftMdfe624WRC+wjIvsg18673AeV8TiAOytZLX327qe40lvcA+9WBwP4f4e1DXpvv/EIQeydf9RNBX/KPLRvXEFizFrOvaXAIGUGTLnxHSIknWr7Gmg2rBYshQAAABoANh8qzZaxxvlnxTwxT0/vZDuYviNYw3dW3cuXNYEZV001c/LYHcbVXPHPiHjcRIFzsbZ+zalT87njn2IHpUg5q4UL3aD7Ss0H2J/X41Wl62UYqwhhof15VrtXOLaebq1el7LFVPdn/AH+5JXgOA4drFq7cuXO3uZrhyhXtr9YVXtFYKsEAMc11SdQAay8T5jwqlVtWbRt237REtq4yXpVmdbhbKFMaLkcDJl8MVDeJM62UfMHtgxEseykknux5yYHnJiROl2yjVbnaZgNgIHy3B9CSa3OJ3OL8cvsHxEZcxIa4kdoZ3BuE5wv1kRIQBgI2rj3GPjd1IaTIOaddTnnXXfTeda2cJi8khhNthDqRuD6EjWJ69TqN65N+yMJd1HaYe4A9p/Q+fqNiuhBHTqGW5G51Hp/WP7V0sPwl2Ens0hfBpcdtDqbc5FmDGYrtEHWtJMSbumVQQNI9NYnr1ivWDvKk585Ux3FfIrbyHcDNlkzAjWZgGQZUzHjybnD76KyKuHZ7qxnYg3XzDQ9mhGVIMSSJ9ZE194rYcs73WIefAz9pcXr3yvdQagASYLAQNSFqzdvd7C2zbthSC6DsrYB8XfZpYaDUsTPQdcOBuWRbXtu1ukE5bKns7Sidy0lpMzCgDcGNJEz4MWBxKgdjd/ZEkq25sud2Ebo0AMo8gw1EHJlsprdvA+SWMt1z/qB7JR6lif4awXznclUC5joiAka6AAEkn/J08q+2sKgz9q/Z5CQRkLOW10CyF0Ig5mEetZRUZ6l3iGYFbVpbSEFWLHtLrAiCC7AKoI3CKtYrGCBYTCZhmzMGiIJnQEkaaQDNfLmJ0FsWDmBGdzmB7wzKIYgAZdQIk7z5XBy/8PLN60mJe82KZgHDMTkcdVIJJ8wcxMEbaEVJmZ5pM5VPcv2rTEKhxE6IcrqsgS2itJgfxCIkrBgTTkPk8cQs5rmIYLbMNYUwyHWCTt3hsyidIzd2BaPE+UsNicN2OTIBrbZAFay42ZY2YHp11Gxqn/8AauGYwxCX7YnQHs79qdXUdUMd5N0Ikbd0jxi+X7/CcWpTS6CWs3dxfTdgZ+2Bo1vqNRVycn8z2eIWdO5eSDctzqp6Mp6qeh+RrStX8JxvBMjiDpmUH6yxcHhdW95KtEESCPEtVVi8JiuH4sDMVxSS1u4ohcQnVgNs3RrZ3nzjMF9YzCpeR7N5FZWUhlI7rrsTH4eoMehNHc2ctXeH31hm7IsPo2IkhlYeG1cYbMI7r9QI6aWtydzXb4ha+5fSC6j7J2DoTup/KYMzr1uI8Pt4i29i+isrLDKdmHmOv91Ma7EhCOW+ZbPE7TYDHoO3KxqIF2Ncyx4bo8UDyzL1CwPmXgd/h19MzPGYfR8SuhMbK5GguqOvUeYELJ7Hw1x9nEk4e+nZJD2btwtmETlVkA7zDQE6AjXclatQ4dLqBbqK4BBKuoIzLqDlMgEHUb9NetBFeGW7HGeHqMQrHYFwMv1ijS7aeI67rpOZTpIpyXyOMA+Z8Q9xoyJAyJljZlBJL+5jQQARUvCZNh3eoHT1A8vMfOshgjzBoPrLPv0P66URvx61j7TL4jp0P+fWoLzX8VMFhgVst9JvjYWyMgPXNd1XpsuY7aVBO2ESRtuR/cfr/vGeY/iFgMICHvC5cj9lahn2kTrlWdPERVQ8e584jjpGf6NYP2LZIJHq/jb5ZVPUVHsJw5FgBc7HYRufRB/TWgl/GPifxDFAphwMNaJIzDVyJMfWHbSAcgmetRRcGMxe4zXHJklidT5kkyx9SdfKpnwPkLFX4a79Tb/i1cj0Tp8yParE4BydhsNBRM1wfvH1b5dF+QFMit+BcmYrEAHJ2NroziNP4bY1/oPWrD4DyNhrEMV7W4PtXIIB/hTYe+p9alaWazrbqDClqsy26yAV9or4BX2lKCtOabLW7jTpN1XB8wz/APePxqJ80cJF1e1tjvjcD8Y/uP8AvVv8w8JGItlY741U/wBv1sYqs3LW3K3P5WBnUawPTWfzrhuRNuvMPo9Lco1NmaKucbT8wr7C4rLIYZrbiLifeX0nZhuD0PzrjgPhHgKHsuM6PGwJyhusa6EGYII3FTDmvhGRu1TVG1Pz6/59deunFsZLiNYuGFbVHn9mx8Wv3WAEg6EgbeIdluuK4zDwtRYqsV8M+nnDRtYt7s5zJA0+WpA6xuY86yKyuhs3Z7JjIPW0+2cDqvRl6jUaqK5+Dwty2xOcdQCJ1HnqBHzFbapAA8tKzaGjgUu2rnQ5TAMgjQ9CN/fbyrcCSNes9NNekeXSszWSILAqG2LAgEecxqPaazcNt9riOxwy/SXAkCMoIgSTLDQE9TrGo1ig9vcv4iAWe4FAgE91QBuZ7q6DxH8a592/aVZZyH6IFnTTUmdPaD8qsbhHwuus6nFuFR57trQBpkKXImD6AagCdRWXnj4bW8On0nCp3FWLyASwUai6p3JEnMpPeXXQgGqI/a5Hx+IsdrbtWrcWy1tRBe7PeHezEajYsxjyEk1p8jYqzg8StzEobtpiVZnXv2WBgkLEqynRkGsHSe7mmHwx5y+jkYPEsOxb9hcnRM2y5uttjsfskxt4en8UOTic2Mw6ZjvibS7uoGl1P+Kg6faWR6EOlzzyamKtDEYQIb4QEQRkxFvxBC3n1V+h9DpBORub3wD5XDthHYh0Ih7TjRu70ddmXqBI6Vt/D3nX6GVsX3zYN9bdzpbk+L+QnxD7J185kPxK5SzhsZhUzuVBv2l/foBo6R+9UbEeIaa6AhYdm+txVvWWDo4DSp0dY0I/ij8dj0I4vOPLVvH2AM2S4hz2bq+K2/n6qdmXr6EAirfh3zp9Evph2uZ8JeYRM/Vs+zjyBOjDbr0M3ewjvLqp1YD/AKh6+Y69Ndw/PKY7EcOxOb9jirZyukE27inUERvafLtpBiIIGW3b2Cw/GcDbZu6XAdSIL2LsawfMEwR1HvXR5l5QwmPFs31JKGVdGysVO65huh0P4EEVt8H4PYwa9nYtrbtEzpvmOneY6tOmpJI22iAr3kbkPHYTGdtevW1EuvdzObylsxXWMkwGE5j6aVar25HkRqD5GjqCIO36/P1rxbYjutv0PmP/ANf+fQB6t3eh0Ybj+49K+uvUb/1rR4xxKxYTtL91LSjZmIGvkB1J+6NTVa8c+MIjLgrJLkeO7sD6IpzN8yvzoLVuYlVUu7BVAlixACj1J2quuZPi1hrBKYRfpDR4pK2w0jZo7wiT3dD51VnE8ZicUxfFXneTmyk90GIBFsdxdNJifevXDeHM7ZLFtnf+ESfmdlHroKSMvMPH8dxD/wBVdi1Mi0oyoDtokyTqdXJ30NaWBwALBbaF7h2ABZj7Abe/51YnA/hs7Q2KfKP92mp+b7D2E+9WDwfgVnDrls21QdSNz7sdSfepkVpwL4c37sNiG7JT9kQbh/8Aqv51YvA+WMPhh9TaAbq51c/6jr8hpXdt2K2EtVBr27FbCWqyAV9or4BX2lKBSlKBSlKDywqH86cEzqbyDvDxDzHn/n5HpUyrBeSsK6IqjEt+nvVWa4rpU7ZOcNbuagzv0J0M+5mR71B+N8MNi5H2T4T/AG/W/wCNWlzTwjsXzoPq2/L0+X9Pao9xXCC/aK/aGo8/l6/+OtcVFU2qt30N+zRrLMTT6eU9P78q8e4oBLMFgaTOtYb2MfLkWxBkE3HDA6glRBOxEnbWB5VL/hy2HtY7scXbTO5C2rjDVX+yJOwcHQ6GYHXSwPiFyWL1vt8MgOIQQybdvb3KT98eJD0Omxr0YxMZh8xVTNMzE84RzlP4bYbF4ZL9y897tEga5RbOoIyqfEpkak6jaonjuF4jhmKAWFvWe+jKO7ct+EXAvkR3XToZ6HTo8hc2Hh96GJbB3jL6GVPh7QLuHWMrLvA6ws2vzhy/b4hh1KMour9Zh7w1AJGmo8VthoR1Gu4FVi2uUOY7XEMPnACuIW9bnVGjodyp3Vv6EEDsIT4G1MSD94efuJ1+R6wPzzwriWI4fiTeRCj227PEWSdBrqhPVG0KOJ6b/avng3FbWNsJestodRtmtuBqCOjCYI2IPUHUKj+IvKAwjG5aWMHcbpth7jHb0suT/pY+RAPd+G3OrErgcWTn8Ni4258rbHzjwt9oabxmsa/YW8j2rqqZGW4hEqVYRsd1In8CNwaqDiHwjxn0wHD3kGHTK9q47NmTKxZVyjUsp+1oCIMzNA+JfKLYXtMVh0zYZ5a5bA/Y3T+8WNrbHRh0Ou23a+B/GL13D3LFxHa1bb6q5HcUEKeyk9ROYAbA9BFWNw5WNpVukO4ULd7oALRD92SADvGog+RrLcswcyDUAAr95RsB5MOn4dZARDiHwywNzFHFFGMnM9kNFtm1JaBDZiTMTlJmR3pqZ4a2qooQAIAAoGgAAgADoIr7buAgEbH9fj6V4buy32d29P4h/cfPeZA3cM/YOp/hPn7ef4+dZjUd5i50weDH114Z4kW171wzt3RqAfNoHrVU8b+KOMvFkwgFm0T3TANwLA0JJKLrm2GkgA6SQt3jfMuFwQH0i8qAglAZLECJAUSW3GwP5E1WPM/xauXptYG2bYP71wC+h+zb1UbDVp0J7oqvzh2di912d21Ykksx/idtT+ta6/B+B3sR3bFolerbIPdjv+ZoOdi3u337XE3WuOerGSB5A7KPQaVucJ4ZdvNkw9osdjA0H8zHQexNWFwL4bW1hsSxuN9wSE+fU/kPSp7geGpbUKiBVGwUAAfIVMivuBfDcaNinn/hoSB833PyirA4Zwm3ZUJatqi+SgD8fM107WGrZS3UGvbw9bC269gV9or4BX2lKBSlKBSlKBSlKBSlKBXxhX2lBzOJ4JbiFWGh/I9CPWqwx+DbD3Sh2nTy9I9D/kVb7rUc5n4MLyGB3xOX/Hz/ACMVovW+KMxzel9P1fZVcNXdlTXN3Cc4F22NRvH4kf1I9Z86sX4X84fTbHY3mnFWlEk73bewf+YaBvWD9qBGQILW3Hof15z+dQ/HLdwGKXEWDDK2YHpJ3BHVGEgj+YaaVr09zH2y6/qmk4o7anw5/PtKZfE3lUWmbFWl+ouNOIAH7K4dBfA+6To4+fmRg+GHOJsXhw7EOCjkiyZnIxGbLP3G3E6gnbXu2XwDitniGFW6gBRwVuI0HK0Q9th13+YIPWoC/wAE7f0h7i4lhZBBs2wDmEAQrXZJCiMsgExGsjXteC7XxK5MfE22v4bTEqjKQN71sg93+dSZU+466c34Ncu8Qwna/SMqWXIJtMSbguQIbTRQV9Z020qy8CwKCJ0GUhjLAjQhj1I89Z3kzNer1syGXxDSPvD7p/qD0PoTIe71smCsZxtOx8wfQ/kYPSvtm6GE6joQdweoMdRS1cDAEbH/AMEEdCDpHSsGMuC2DdJACqS/qoElvdRJnqNPIgM1xDOZd+o+8PL38vw616DiJ6fr9RVe8y/FzBYcFbB+k3OgtkZB73NR/wAuaqo43z5xDGF5um1ac+C33ViIjP4221EwSToKC5+a/iDg8C2XN2t0mHtW8pZTE5mlgF6Ag6mQQDBqruYPiTjsZKW4sWTIK2zLEHQhrpA/+IX51C7VlFGuv5D8KlvAeT8ViYITsrf37gI09E3P5D1pkR61hVGrGTufKffc/lUj4Hy1iMTHZW4t/fbup8tJPyBqxuX+QMNZhnHbXB9p9gfRNh7mT61NLGE9KcRhBuBfDyzbhrx7Z/I6IP8AT1+c1NsNgQoAUAAbACAK6FvDithbdYjWtYathLcVkpRXyK+0pQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKxXUmstfCKCA86cDn65BqPF/n26H5HpUIx2FW/aKMO8AdOvqPeQCPUCrsxFkEEGqx5p4OcPczoPq229PT3HT09q479vH3Q9/6bq+OOyr9POOiDci8ytwzFlbhJw9yFujpH2boHmOvpI6V+hLVwMAykFSJBGxB2NUBzXwrtFF1B3vTz6j5/19673wv+IFmzZ+jYu7lCE9mzbBdwM2wA1EHyESTXRZuccebzddpewubd2eXx+YW3fQq3aLJ6Oo6gbMB94em401hY9X8bbRDcZ1CAZixYZcu85jpEdaqfmb41W1lMDbNxuly5Kp7hdHb55KqrinEsVizOIusy5mYKxOVSxJOW3sNyPaBsK3OFb/NXxhw9lyuDUX2M52krbDCApDZe91nLoYGtVfx/mjG48n6RdPZn92srb/5AZbbQsT71zMNhe8FRSznYASx9gP7VN+A/DjE3oa+exTy0Nw/LZfnPtUEHt4dRGmZjoPU+gqX8B5CxeIhnHY2/Nx3iPRN/xirV5e5Ow2GjsrYz9XbVz8zt7CKlFnBVMiG8uciYbDQwTtLg/eXIJ+Q2X5CpjYwdb9rDAVnVKK17WGArYCV6pQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQeWFc7ivD1uoUYaH8j0I9RXTrw61JjLKmqaZzCocdw42may42n2IMwR+tPlVT8asKbjjbVSTGpJAJ/Ek1+mOY+C9ukqIurqp8/NT6H+sVWGG+F7vdNzFOVUx9Wm+gA1f5fZ/GtFuiaK56PU1Wqpv6aM96KuXpO6rsFgizBLSM7nYKCW/LYflU84B8NL1yGxLdmv3Fgufc7D5TVpcF5btWFy2bSoOsDU+53J9672HwFdGXko3wDlaxhhFm0F823Y+7HU1I7GCrft4cCswWgwWsOBWYLXqlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlB5IrwyilKD6qCvYFKUH2lKUClKUClKUClKUClKUClKUClKUClKUClKUClKUClKUClKUClKUH//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTEhIVFRUWFRcVFxcXFxcXFxUVFhgXFxUVFRUYHSggGBolHRgVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLi0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAQMAwgMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAACAwAEAQUHBgj/xABMEAABAgIFBwgHBQUHAwUAAAABAAIDEQQSITFBBSJRYXGx8AYHMnKBkaHBEyMzQmKy0RRzgqLCUlOSw+EkQ2ODk7PTFqPSFSU0VPH/xAAaAQADAQEBAQAAAAAAAAAAAAABAgMEAAUG/8QALBEAAgEDBAECBQQDAAAAAAAAAAECAxExBBIhQVEiMgUTYYHRQnGRoRSx4f/aAAwDAQACEQMRAD8A8Y+giIX2ycHWdsyiotdma60aUeSaRX9I7TEPdVBG9XIiyO56KSBa5Ycd6wDcokkPEB0Sw7CrdDPqmE/sN+VUX3HYdytwD6pnUb8oUxgIgvS3gzHZ5rL3cWpL3Zw7NKpFCNhRwtfTTnM6/kStjHlMLX5Svhdc/I5FAkVqXEtW35PVPQkuc4H0j7mh39ydLhrWipLrVu8gQh6BxL2jOiGRr/uiMGnSFWl7iVZ8G8p9QjpOGaB0B8AFz14ekCUR9s891unOOC9vTYYLSBEZhfXwLMaq8VSG+seLDnutFxzirT9pKHuCo9rnfhHgU2GlwOk/a35UcNRKrBfZdgmQikC5MghLIeIdOPq39R24pkF2FvRHmFXp59VE6jtxWaJHra80aMXOxSod5LnG9FCGdLVPxQtPHejJzx1SO2YXHDAeOxLigF7QdJ8AEYdx2JbvaM2v+XSpyHRYEMaFEfFyiiUNNkfoxDKXrTZozGgK9E2b9IVTJYNWJ9449kgFainiexbGZYmIbQb3SkCRZOZwbqnpSw4qTuWVOWB45Af0XdU7lYY+UNg+Bvkqsc5j5/su3J7+i3qt+qRDvsCapxYhr3dtsuw3EpwfaBPBLeZ44zV0rEWx1IdaPqqVNtdB65+RyuRn3KnS+nC6z/kKUaX4KVJbat3kaB/Z+k0VhGNrgLg0XFaeO21brJ0AmALWDNjXvaDczAmy5Uo5JVsG0p0GwgOZfi9gxg6TtXkqTCIiPn+27EH3jcRYV6zKkGcwDDGHtGD3oIna7UV5mmMlFePjdr944ixVq+1E6XMmKgC1/Wb8jVGukUUISMTrj/bYha0TJxUkV6LTXWf1T4TrkEF4DXAta6sBIkWtIM5tM7J3KQWSFhsvlfLShJDRZjKHsn9R25UMnRxWvlMgadAA81cykfUxOo7cqEOAGkHj+iVYGeT0ELH6akcR1qTBeJWcWIy4SMwZ4GcpHWMQRPwShY5hs40JYdOK0aKx8FGmxLge1HVduCm+yi6L81hDMKKdhzXZN6J1uP6VYipGTRmdrt4Toxs7vNa3kyrAqd2xG03pZddxgjZipyKREUr2bz8J3K3HuHVG4qpTh6mJ1CrVLw2S3BLHoL7Ko6ROgaETGWS1JU79ZRsiZ1XUrkLgRDmiy6zuSo/tIX4/lTIwsO1KiH1sPqvPgg/yH/gqKFt6FBBgtNdgJZGvrY1RgNi1UZb3I8EVWAOba0iRa53TitBlNsp2Xo0cgrYG5Rghz3EPZ0je6X943SBoWgpTZRHdd11vvHEXrf00Nm9pewTdO1j5iUW4GrZfb2LRRGZ7rQc9107bTgRNUre1CUfcxcBvtPvP0MQOZJNgWek+8PytQxFFPktbgYy5GxLbcjYukGKFZRPqn9U7k9kMgAkYJVIb6t2xbB5IAE/dG7+iCwF5NfBeaxldYVenYqDqHJ1YTGzQU0zLxbJsrpG3YZbEWhUy4Im+W5LobiY1t1Qpghg981KOyUT8LvCqFKXZVdFouUQkqJBypk7oYdJ3zH6I493GtV6C01J4Vj8xTIh471ob5M6XBm+VmCk71BOfciqWpGOhGUT6iJ1SrFMNvGtJyxGYIL2zFYtuxwTKc6R40f1QisfcEnkpsAMp6ScUJbc/XPG5ZLrOyXenlmaRq0q9yNhUYXpUT2sPqP3D6plaYGzSlPPrYX3b/wBKVjEir0WQyycOx0wwHCXtSTuXnXi1bqgUqoWEMZ7OEJ5886JI+/JNSWRanQ/K0JjXuriI02GVUXOiAg2kalpKRKu+U5VjKYljiAtrTqU2bpw2G0i+JhE661UYzc4ylnGwTst0m1PW9iFo+9i4Hv8A3h3NQOlJMo5kH/eO8kolZ1k0LA1gsWIVyJpsQwjYizkNieydr+oVxxs7BuKp0v2R2jeFZo8i3u3ALv0iX9RIgs7kJcipIw4sSapKCHZZhRBNSA+cTYw+LmpUODbejozJOnpEvGfkFOQ6bLDjaoiMLUohwHkpZLdOE3G0nxRRL+NaxQRKG3jEoiOO9WZJYMB9qxEN8kInYjHmlYyKlOhD0bjLADvKsU828YyCHKkhCJ1t3hMpDgTI8YoReGBq90UyLRt3LLYhrarv6oiNSMssljLtV0QeRQbhr3pT/bM+7f8AM1Ox27wkxhKO2X7p3zNSyCjL5TW+oRimoPS2ejg2emZ+8OFbRZ4Lz7ivRZLqAslWtZBFoYfecRabRdgmpPJ1VYCpj4ufKILzL1sM/wB7rdoWljuPpHVjM1jO446RYtpSjDMF3TAL5zqMcZiIbAawMrdOjQtTFHrHATlWMp2G/QCU9b2iUfcxME2O6796XNMg9F3XifMUEwodmhYQ1lykNYabLkUMalzCgsoH1YGtvzBFRYtgVfKr5QwdbfmCChPsTW9JJv1luNGJIEjjamQjaggxL0yF9UjKIcxvHgjdmkbJ+ICKFgq+U3SiNl+yktcZuxdFI4tUWrNJlZ5qJNhTeh1FPq27GrLjbLjFYons2dVu5R2KuQRk4SUhqVrQNSzCcEjKIRlMerA0vYO9wS6aKhrOPBl5JuVXGTdHpGfMCplCDXbK4gzGiY0poK6JTdmxTY4NoB7sVh8Jwzp2qo1trRovtmvbcluSLqQQ+I5whkAgCwuGBJIzWnCwk4CVqq5xguSLTbPMMNzjKR+aVoQsoMZ8as2DFcBDcJiG8iZc2VoC7dk3k1R4IkyE0HSBJx2v6R71sG5Phfu2E6S0E95tWKesh0rlYwZwh2Q6SR/8eL2sc3eAt1k+uIjQXQrDCF8CdzjhbiF1ukwWNa4hjbj7o0bFyKiwXCIP7M/pQrfWYQ26sLQr6SqqilZC1b8FR7ono+lAtq3miytiHsVeNk6OYj3CC8isZOZDJYbcHMFXuT6TCcQJ0aMSahMi6c67jO2GV1fkrRWGjMJhgHO6QBcM43mQVtTNRirk6N7nD2wXNaazS31j+kCPeOlDUK+hI1AY4SLfEjcVpMo8jaNFnmAHYGn+JkiTrdW2LItVBvm6L2kjjLGpjGlek5R8kIlFaXNLnsFpnKu0YnNAD2jSACMQF56ur3TV0GLbKuV2Thja35glwGHAGR3p2U3GoB8Td4Tsnk1TtT3tEna8zEFpF6dDPmhnasw/LzU2VRchG7jBV8oQyYswbWwzLG8n6J0M8dyU+LKMDhUE9lZ31Qh2Co8Guc15tsttvl4YKLdOa2fRHgsrrhsynRG+rb1RuQudfxgENGfVY3YN30RRSmWQdGWjO2BMhtkkNdnFODrAlY6EZUt9GP8AFZ4FXI5tO3Tq/otdTznwuuPAFXY8TOPGJTLhE3yx+Q8likUlrSJgZzsJiYAbP4nFrdQcTgu20KiiG0NHabpnEy8sAAFzjmygziPdrYO5sUnxqHsXTQvP1c7yUR4rsaESQXSR11nUkHaVspxPVRLJ5jrr+iblxyFQwIk/s8ayLCx/wwJ+zuFy67lo/wBnjWT9VEsF5zTYFyWDRAIk/QRPaQ/fbhDqz9ngvS0HKkQrZRrYtCGaPQRxYzAftk/sBdk5Gj+yQ5AjpWG8Z7r1yB9EObKBHubc8ftO/wANdb5F2USGJOEi6xxmem68yCtrHaCEo8tm9IQuWSgedS8uT4NKRWplHERtU9hxBwIXGeVGS/s8cgNk10yALgQZOaNWI1Oau0uvXgOc6AJNfK0Obb1muDv9tncn0dT1OIZK1mc5yl0RtG8K5CZVbZp8iqdOOYOs35gthHsHaePFek8E17ipinwbkuVqay7uSsZD2X8aQha2cR3UA7yVmFfxpRsbJxOkDeUInT6BrqIHttO1RHgApsMVQNQ8Akw3NIFV09IN42hWm/Tctb9mqPMvedMaJG0gqm1CbmW4Q81nCexEBiO5A2U9lwSvjkZNvgp06ITEhYCse3NJmr0Q2njEqtlGEQ+CSJTc75HJkR1vGkrukcss9vzYxc94+JviyL/4rpTCuTc3EYCkEaah7qzP5i6rNeRrOKl/oWgroa5yVEfIEkyAtOxYLlrMsUggBovJEtbiZMHg4/hCyx9crIZ+lXKWXqa6LCiwodhcxzbbAKwIFcyJHVFu5cvjxRDjuFaG4/aGjNJNzDeQJTs0pnLzlIfTNoUI5lZvpjbN5eQap1SIJ2ge7bo2vDopm0e3nje1j9a97TUnCBinO7GQ6Q19QThA1WHOcWg5zveLZd5XVeT+WRQqKPtAIa2ZNUF4ALiZiqJiUxMEa5jHiFMLWtAqgiozE/tv1r1HN9yllF+xxrYUSYhzM6jrZNE8DbIaTK5xVK0N0bvlCRlZ2OvZK5cUGkODIdIaHkyDXzhud1a4FbsW/c5fMvLXIootIc1pFV03NFtgxANxE5y1SXt+azl64PbQ6W8ua41YMRxm5rsIbyb2m4HAyFxsx1tL6d1N/wAl4VObSOvvC8HzmuAY0aXQ/wCcfJe+LlzDnSpOexnxH8jGkf7x7ll0kU6ty03weHp8gwH42bwr1Miizi9UI+c1o+Nm9MpTbbJ2YYdi9WxF5ZlpVqGN6qQ7Vca2wdqWQ8RtHv7PIo4ljuxZozb+7wCGkHPOxLcLXIDxadulYRni5RdcNhVbz3BVqRCJN93H0Tjx3D6ISbe/yT3FFRWkNkFKGy2Z40p0QqQkL8HW5K2W4s4kDrO+UpcZ1ur/APVMp+1gjQXH8pWIx1cXJlhE+2b7kNElSh1R4RIbvJdnXFeRDZ0qwXM+aJDZ+pdmD15HxBpSiaaXNxq0GWyfSD8XhCmD3k963ZctRluFc8WykZaak5t7Wl38Kz6ea3nVIvafPeWXH/1CMTf9qf4RStnR2euIH76kfls/Utly+yAYdMh0lgnCjRGTI92LMVp6K0i7aXD3SlZCo/pI5Hx0s/mhBfSRkpQTXg861pHn8ptu6kPxe5U8nOLaRCLbxFYRtrAhbblNCqxXN0Nhj8xV7m9yA6PShGcJQoBDy43GIBWYwabZOOpusTaTUYXYtrzNpzuQxWgnG0dlVi8A6YN87pET8J6F6nnJymI1KqNuhNq9plMdgDRPUvKtdxxclpJqCTHbTbPo/kDyg+20KHEcZxG+ri/eMAzvxAtd2rn/ADkUmtSmjQ1x74j27obVV5lcr1KXEo5ObGZNon78O2wa2l/cEPL6yl/g/mxVgpUvl6iS6tdfc0uW6KNROdT7xvmn0jEhUa9rPvG+asxX2LXYHkbAFncrU7O9UYTjossVlsbclkh4ysX6N7236JUY57tjdxQUeIbdv0RROm7Y3cUluA3u0EVFhzrVhKOJdx3pBiSIsMiE53HekRZyvlxLyVkSsxr3JkMWKuBYFYhJJDIo04zjQtj9yCIbUdMHr4fUf5KMgl7wxgm5xDWjS5xkB3lMsIn2z2vNhk4zdFPvO/LDG4ve3/SK6WwLTcmMntgwGht0gGm6bWzk78Ti9/41umrwNXU+ZWb8cGqnG0TBUiQQ4SP9QcCNaZJQqCVuRnyeZptBLSWOaHMde0jNOObPWAat4Is0jT0fIVGhPrwgWPnFBDiXdOq51j3CVoGle5c2dhtGtVjQmHTjZOYtGgzXoUNZJLkhOj4PC0zkpRIr68YOc9wEw1xbORMrGk91m1aPlbynZQ2fZKKwQ3tAEqshDDgHAyN7jMG2dtriSurw6CwSsN2mXgJL5/5yW/8AuVJkAAHNEtkNi36eqq07S6VzPUg4Lg809xcSSSSSSSbSSbyShkjDFJL0SNjccjKUYVOo0QYRmNOx5qO8HFe850qEWxmRAL5tJ257e8mN/CuZ0QlsSG4Xh7SNcnDzC79y/wAlengGqM4XdYZzO/OZ/mLBXlsrwflNGimvQ/pycYcbWdcbnKwXKvEvh63/AKXJzitBxYa5MhfRVobk6Gbe7zQYxdo3n9SmxOk7s3N+qRRHXcYJ0TpHb+lim8DLJh4EztUQuNpsUSji3ceKUeO9MJ470ku1KiEYwlNY6y+SrRDZ2JcR05INBFRolaOyRuY7eF6zkLksxYxebhNjdpHrHfhYZbYrDgvIwYRMdgEySwgAXklzQAO0rtPJPJogwQL5CrPSQSXuGovrS+FrVDVVvl079iwjd2N81oAkLBLuWQsAIl4WTUZKwhimQJ0CfguZDnYd/wDTH+sf+NWpaepWvsWP2JzqRhbcdN0IYf13LxGQ+XrqSZfZ2Mkc6tSITQJzlIxKpddcBYrkLldICsKM2bXOtp1GMrPhcZjWtEdBXX6f7X5F+fT8nrZrkXO9yXeIppsJpdDc1ojSvY5oqh5+EtAGojWvaf8AV8MXvowkBP8AtTTeBoYdPaqGVOcaFBIb6MRZi30cSYGpxc0W6lpo6fU0pblG/wB1+Sc6tOStc4aCMbtSxNdOdlfJceIA7JYBe4CbXBtrjKZDJaV0Ci8jaBDM20SDO8Fza5npm+a1VdZ8q2+DTf7fklClvwzkvNryTfSqQyO9pFHhODy4iQiPaZtY3TaBM3SEl3Okwg9pacRKYvBwI1g29iy1gAAAAAuAsA2BZBXjajUyrT3Pi2DZCmoKxwvlfk4wKSBKTXvLwBcDJwe0aJODpDRV0rVRXLp3OZkeuwRQLWExO5tWIO1ga7/JOlcvjFe5QqqrBSMkltbQyE6zjQrTTb3biqcMSHGhWOPAqjCi5RzIt40fVWK83uGiXi1n0VSCZEbPNqcx2e7aNzVOWCkcjHXqISFFMqJrWca0mU5oh5fVLbeqkiPErNSEi5E5Y0IMJuOR+TzEpgcLocOw6IkRwDD2APf/AJa7LDhhrQ0CQAAA1CwLxnN5QJMr4kF57SYbB2BkQ/5hXsyvG19XdPb4K0o2uw5opoAiCxoozEcTBAxBHguMR+QdNYJ1GOkPdcJ+IC7SVhwWmhqqlC+y3JKdKM/ccJ5P0htEpJiUhxguhteWB0IxAYtWq1rmCRkZkzBFoFovG4/6qo7GSh0hxdDozmQ5UdgBiUh9akMcCAKrarKspC1wm653S8o5GgxvaQ2u2hax3I+ifuGdy9CPxaP6o8kHpPDPFR+VtG9Y0UilOYfs9HEocEF1EhAF05tEoge6LI2WVbMR5zK1KiU6lRIjS+KXvzZtbXqDNh1wwVQaobOS6w3kbRP3DO5bPJ2RYMH2cNrdgTv4rG3pjyD/ABOeWcuyVyNpteG4wpND2kzc0GQcCV2SSxNQlebqNXOvZyS48GinSUMGJopIVkFZ4/Uqynlaj14ThIE3gHEj3TqImO1cJyvRfRRXw7w02HS05zD2tIPau/vcuRc4dAqRw4XGs3uk9v5Ygb+Bel8Nq+p0/uZ68cM8uBZ37kwY7TuSQfPyTZyn27l6zIIsgW9nmnwTnO2j5WpLTbxrTYN7uz5VKeCsMjQosiSyol+CmDu+qU4yTBx4oHK5EFqM2LDUEe2zjFBnHZ+ScENggamN/hhsafzVj2rclavIB9V+N/zGXhJbKsvntRK9SX7s0U16UEiaUBKIKQwZKwXIEJXOQEgiVJIJoppdwbBNuRJbSiBVYvgDRkhDiisQliV/Q5GJrKWQiaUqYzQRC8BzpUfMDtBYTsBew/O3uXvyF4rnLtgfh/mwpea26J2rr7/6I1VeJysceCsSv7dyS0bvorAx7dy99mNDJW8a0yim1/Z8qU51vGtFRDa/aNwUpYLQyWy5RJebTtUSWKXEz8/NCb1AdxQtdaSVRk0zJNqk7VgmZWQEGMdb5GUmvR22+6w/kDHH+Nj16Bc25vsshsR0Fx6IBHUeZdzXgf6p0LpE14Wrp7KrfnktTldW8DFmSCsiUeBiIXFQlCVOQUQKPKEInJLcBMtRtKWETVSIGGSsFywUE7UWzkjBKIFAVlqVZGY0OXP+dSkioGDFzG9me93dVh/xL3cV4aCSZACZOgC9ca5dZT9NSKv7E59d0pj8LWsbta5en8Pg5VN3gy13xY0bTYnCdvGCVDNisTv7dy9lmeKCaxMogtftG4LA48VKKbX7RuCjLBdWuYe607VEDryso2OuLHHgsQxMrE/LyWYF6ZiIjRajIWAiakkOhdCpLodJL23ta2w3EEODmnURMdq6/wAmctspDBJ1twneZXtd8Yx0iRFhs4032z+qz9Ss5PylEo8SvDOIrNM5OAunK0EYEWjvnGvRVVWYIvbyjvKIBeO5OctYceTXmT7qplX7BdE2tt0tC9ZApDXibXA7MNRGC8mdCVN+pF1NSwGVhCSiBWd2bHIo5ZkoV2065AEbQhRtVIRFbI4JUrU1xSkslyFMhCgSo9JazpOAncMTsF57F4zlRy4ZCDocPOfdVB/3HDoD4RnH4b1ajpp1H6ULOoo5LPLnlO2AwMaQXunVF83NvJ+Ft50mQ0y5JFiEmZJJN5NpJN5JxKLKFMfFitfEdNxDtQAAEmtGAGhIeV79CjGlHajDOTbuy0H2cak1rr+3yVOfHcrcPjwTtBiy01yzRznP2+QQsKxBOc/b5BSeCyyR5tO1RYdeoicBLjtKKEhWAmYiGztKJr0AQG9IyiEsd66J1WeaxEUgD1sTY3zRRVzyKsfyVorZ3rZULlHSYXRiFwGD86zQHdNo6rgtc9IenSuTke0onOVFbY+GTra8HtqvaSdldbWic58I9JrhrMOXyxHbly0uWIYs796nLSUZcuKFVWfTOxQ+cujYkdoijdCKcOciin3m/wDe/wCFcZkpJTehoeP7Y/zZ+TtB5xKJ+8b/AN7/AIkJ5yqIPeHdGP8AKXGlHjNOxGOiorr+2c6s/J1ml86MAdEOdsh/+b2rRU/nNiumIcMjQXOl21WAH868DJG0Ki01Jc7ULvk+zbU/lFSY0w+KQ03tZmgi6TiM546xK17AhaE5gVTkYIzm7H/pWHpjhnM2P/SgiC1MhZDGDjtCss47wkMbdxirDBx2oMaKLEPHjQhZ0nbfoiDrDxoQMvO1SZZZIVFgNUQuNYw5RqwomJoY1DisKJWMhUH2kT8O5SIooueRVgREVZ947VFFSJOZWF6ZBGaO3eVFEzEiFJYkoogMRZcLCoouO6BWWqKInIa1NaoogMGemzY79KB3SUURQrLDR5Im4cYrKiDGQ4XcaApCx2+SiiSRSOSBRRRIMf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFhUWFxgYFxYYGR4aGhcYGhcYFxcXGBgYHyggGBolHRgXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHyYtLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABNEAABAgMEBQgFCAgEBQUAAAABAhEAAyEEEjFBBVFhcZEGEyKBobHB8BQyUmLRByNCU3KS0uEVM3OCorLC8SSDk+IWQ1Sz0zRVY6Pj/8QAGQEAAwEBAQAAAAAAAAAAAAAAAAECAwQF/8QAKxEAAgIABAQGAgMBAAAAAAAAAAECEQMSITETMlGRBCJBYaHwgdGx4fEz/9oADAMBAAIRAxEAPwDIJUPb7oUkjJfnhDIme92flCxNPtdn5R5R7dDyCn2z56odBT7SvPVDImH2vPCBzm3zwhAFaZYJo5pnvMN81vh8F83364eS2oecIdkvchDe2+NRyP5Mm1KvLLSklqUK1agcgMz1DNqYSnIAFTQDacI7DyWsaZSEy0iiEgdeZ3kueuNcOKk9TDGm4rQudG2KVZ5YRKQlCRkkM51nWdpii5e2RM6xzbyQVISZiDmlSQ9DtAIOwxop2UVmmkPImjWhXcY6WtKOKL1s8/zDtMRlxOocj5ERZoDRyI9EjBUPysRhUw2+omJmjEkzEDWtIwGZhsERLfJUkodKg6woOCHBRLYh8QWd4hSJhGf/ACp//ZmxPtqFC4ekk41cUKQRjkzEbGiBJWXrX5qdj+ymdcda+/Bxv78kzRc0maxb9UKmn0kxcAl8Bx/KKnRKQuYxA/VP/GjKL6TZTqHU8c+LzG+FyhpQdQ46+qFpl+7hux4w+hAGKRjrPwxh5BqKAcfhsjI0sZEn3e74wkyNaTwESFLbLLX+UKNoSBUEYbd+p4KC2RRZk+z2NCky2oAobmA3xOlLSQ15NHDt4fnDVpKX9YMwNOuJlsVF6kYy/wBpxgGWXHrjrr3w9zoyV3wyo+8e2Is0EKT7qutX5w0qV7pPXDylDWonrhHOJOZLbfzigG+YPsjiIOFX0+zBQWBSiFpBgkydhh2XKO2KYBMYUEnbxhQl74WJW+EMARSrw4Ptd0IAbV1lvCHUtqTx+EKyGiboOXetEp1P0nbd0vCOxaBFOuOR8nj/AIhHq4qw+yY63oI9GOnB2OLxPMWU81hieh0kaxD83GG43OY8826zlC1yyPUUU1zKSQe6IE41AapwFa4/nG/+UzQvNzxaAWROYHUJgDEbHSL37qoxUxAb1w9aONeuOSqdHoxlmSZCSk6ouuStlKp6SRRHS8AO3sisTLFemOwxquRcrozFO7qA4C94xMmN7GQtoWlSXEwdB+k4N0g3XfYEt1NBos8v0cTueBnPOQZBFeb9HmK518WvdHrDYGCtkhaSE1BEs4EHJZxSTspERCjn9VMxHuTY7V9+Dke/33Jug5vz1AH5gcL6XjRS5ynbojHOlMKxnNDTWnYJHzWP7w+EXqJhOCk8QI5sV+Y6MJeUcVNUdT92sYboAWRqyq3ExHM6vrp89cLE1z6ycfOcZWa0KMxR1ZwaSpscoave8OMHX2w/fxgsqh1CRrOMPyZZu0Zohkh6r4N4iLbRElKkO5PSIc7knhWJbDYY9HOyCMo7It/QxrEGLANvVCDMUs6QSCKV2/CG1SFXitS7ylM5pqYUApQRe/o4beENLsIGsHqHkxSbQrTdlLcV7QgRcehDWOMCFqO0ZtIMSrOhJyiIJidbw4m0NgIooncwnVCuYTuiD6QrdBCYczEgOWuSL3RfDtcwgStnnhEyxyAtJL1fPUwh8WPaIzch0MaMF2ahWQUO2h7461oBfR645gmy7RG/5LWhwNoH5x0eHldo4/Fx2ZqVQUHBR2HERNKaOl2iUqTNDoUK5EHEKByINQY43yo5IT7ISSkrlfRmpdm98fQO+mox2+DCoicFI1w8VwOJci+SgtillalIloug3cVEuWBU4SwDmhxEbq18mJdllhUkG4fWClFRKgMSTrAAYNgdcbCzWWUh7kpCHLm6kJc4OWGNBXZDGnzekLAGVN7EeMZyw0oF8Zyl7Hmy2WcBQZSCOaUxSS3/ADTS8Ac9WRhy9K9GSkImekgzSVu8syeZWAm7e9a+x9XB6mgCbbcLXVKu80u7eAdvnMbpZ90RRZFCWJjHm1ImJStlBJUEzHSFHo3gCKPG0Qlq/vuTtCgmeE//ABcC+uNAZW/jnFNyalE2lIehlHPbGrnWdR/v+ccfiH5vwdWBy/kqjZ9hbfBJs2xXERbSLCtagkVUogDpH8UbTRfImS451a16wklKd2JV2iM4RlPYqeJGG5zYWcaldkLVZxRgp8Th4R1DTfI+z3PmBzcwOUgqUQulQQomu0YRgzKINRXy+2DEjKD1Hh4kZrQqVSDqPHXFho+aUpu1DknqYbtULVJOqGZrg4eHfGakaVZONpU2JHWeMIVaFZnt87YgucSRCVKHtCKzCyEznzmYAn66xCVOHtCG1Thrh2PKWHpKvd4QIr+c29kCCwyoqwva0AEa4K75AhYoM4oBV4bYVTU5gkIf+8KRLrlCsdEywJpeYirUbBvzi2uBnBjPzbBMmVRaFSkil1KQQSPpOTjUcIZXZrUKenLb9kn4xOVS9f5/RDk16fx+zTJQNZ89caPktPZV3Ue/yY5eBa8ra++WjxMaHkVapyJ7TZ4mBQZIuJSxFXdJ3xphQySu18/oxxm5Q2fx+ztcs0g4ZsS3SIfjtPOCgQcCGBX6TtK0hdxCphTLvploN1UxTkBIWfVa6Pv5s0I00T6NN2S1HJ6JJ3ec4kWkNNlK1iYjeSEzOwSVcYj6dIFmnkhxzS6a+iYclcRxeqPO+kZoessJ+bX0ReATSY4AUSeJJhn9KLMhNmKlcykTJgl0ICymYkqdgcHDO1cIf0g979bf+bPSJUyzcV0vnADUl+kH1waxJNll3bxtV6bfPRMsyrsy6zVvXv6tkCRtJkrkoAbUgA1Mk0aNobMfLxgdCzZqJ6FSpaFL5sgXiUjN3INKPGjVpK352aR1TT4mOLxMW5LVbdTpwJVH8my5O2T59J9kE4HU2e+N7YERj/k8kTlylTp8tMtSzdQlKrwKB9J9pJH7sbuXLupjbAhljqc3iJZpFbpaYu+ObSFKBSCCQlkLmJvKfWlMtRAzIEY3TOjwJ62FCbwofpMo9pMbNCrxUvWWH2U0HVevqB1KEYLl1pafJtIRJsvPAywSrnQhjeWm6xxokF9sHioZoB4aVSEix+el8Ip9MSwlYDD1R3q17oZ/4gt3/t//ANyfxQ1OtkyYb06SmSrC6pV7oioVQkVJI6o89Qa/1HoxlbE01J4D4QlRGzz1QgzP2fCG1TNqPu/nFmlDxXtHH8ob5waxxhtcyjXgHzAEMWmdMXOVNKpcu/iiWm7LDMOigk3XZzXEnXFxja3Ik62RM5xOscYEQfSPePZ8IEFD0Gedcvdm9aF/hhZXh0FNtTM7rsKROplwhyXaGyB6niqQtRCZwIa6of5cz8MOItTfRX1SZn4YUu1Amjfd+Bg02rDD7vxidOgak6xTnQTUdI4pKDgMlAFtsJmza4+MRJtsOAz1Bn6hDfpdf7xOUVllKU8TbNLZQVdqC/WPJilRat3E45RNk2k7OzrxiHYzrWgZ95Ai2MY/kNaiqUAS5FCdoplhGxj04O1Z5E1TaCgoOBFEkW30CFezMR/GeZ7phgrVZ0zEKlq9VaSk7iGpC7eOgP2kj/vy4ijS8tp5uzP8O9/oHpBKSomWMV4Ebaa4pVVC9zk+mfk3tAN6SpE1F0oAJure7cDg9E11GM3M5EW8MPRZh6CklmIcmZRwT7Q4iO2aP01JmJksbqpwM1CFC6rm75cqGTUfV1h3bDp2zTUylS5qCJ6lCTiOc5v17oUAaXTjDylcRnNOQ/JOZImqtNsl83JlSS98s5Y3lOkulkvk5JDR0SVyWsyiFCZMY1CCQXGNCzkbQTvixlWuTMSm7MlrTMvXGUlQmADp3R9MCrs7ZxLYENQjs1REsKMuZFLGktmSbPITLAYUAbcBsyER7TPvhk+qcVAs41JI/mGGVcGvR0Y3Eb7ofi0OGLSozsSBlQDsHVGM0+L04l8kj+o98audbEXzKvDnLl+7mElVwKOy93GMDatLIVMWdalZ5Ow7BHJ4x+RI6vCR81ixKbPu+EZ7lDNuzQLpU6AXEtavpKzloIyw2xdDSCPPZEe0kTC4yphnX4xwYe56Fsy/pHuKH+RO/wDHBKnV9WYP8md/440QluMMA9E5asfNYMSDq39HhnG+nQVy6/e5m12sA4K1fqJteKIQueH+nu5ib+GNMqWQWoH93PMM++EFB91vOFYrTp97CuXVffyZf0lOpf8AozPwwI1bH2U8FfGDg06fewZpdfj+zMoVshaS+UMJQ1QaPvh6UfP94bQ0x0JMJuK2DCDvQmmvthUOyJalMoOcqcSIaC4m825c1p57IUwHn8ooyb1G5JBHnfD6C2ffCpa3oKdcKqHxiGilI23yaTnvp1KB4j/bHSgKRzD5NX56aK0CP6o6gRSOvC5Tz8f/AKMKCaDgRoYkW3BwlOtaP4Fc73SzBTUE1CrqhgcR1jMYZjDEQq0VWgary+sAI7RMVwhRi1sIqJSZ7Dpyj01H9WpJe+Xrzho9cNWMASVgpPMWYlCugbxSUXgHufNG6+BY1iXLwT9pX8yocGf2k/0wwK6z6OSkyrtlkIMkr5opUGlCYGmXAEDHMAV2RYWGxplJuIdnUqpcuolRJJ2mHB4w5AAUAwIEAFNyot/MyFreoSW+0rop34nhHIxMGWNMhnXJUbT5Srb6kp2BJUdyegBudzGKS2t8deqmAjix3cqPQ8NHLG+ou/v4CLLR1mC0EsklyzvqBZhvitTKJGBw2+MW+jJPQNFetlTIajHPVHQ3oP8A6MGPNoOZd/gcoH6OyMqVtzqcMokCSBiVAbVZdZ7oXJlggKvkgj2uFQcIuyLIczR6fqpXUCWxfAa9QhUvRwqeZk5GoLs9Me5ommyjG+rJ+nr2P5eI86SHa+oVIPSJ8YdiG/0WPqZH3fygQPRhrV2/GBCsoxiB5/vr8IeQncYSJatnbEgS1YuOJgbNEJSj8oF3ZBiSp/o8fCFplK1gdX9oQwZeTDRVu3XU9VWyrD/MuKmu6GVyvei09DCW42kEF6efLQtSy1A8NTArW/X8YQp/LQMDonySyypU5ZDNcHX0ie8R06aMIyHyVaO5uxpWRWapS+qiU9iQeuNfONY6sNVE4MV3NjcCBDc+ZdSVM5AoNZwSnrLDrizMgzLU05IuLVzhKApKXSkSklRUtWCempSAMSQKMCRNuwiTLupCXdhU6zmo7SXPXEC0i0c1ORz6ETF3+YmXBdllmSCkuFEY1dySagMK9aESJUssn7Su9RhzmzqOI/pipskq0vJ6ctSOZYi7U2hlHnHA9Q6uyDsSbcBZ+cEg0V6SU3h85Tm+a913d+GEVQi3u9/wg4q7LNtg5gTUSKhfpSkKUAhQSDL5pKvWBLu+ETbFOUtAUtFwkq6LvQKISSdZSxbJ2hDH4IQcEIAOTcurSn0tl4CXLAOWZPfFcAMtsWvLxF20qJCmUhB1jBjTLCMo7KdJYHMYYatUcM+ZnpYfKi3M8ijcPNYclrZNS5PUWisstvyW2/IxLC0rF7EYDhGTNorUlm1lNUru4HhhnWHZWl1u916vhke5ogpuAaqZhu0wFWgD6QHmkLMVkLMaUWoVQMD2Yd0KVbauZYq1XAcUevjFWJ6dYzyPwgTZ9NjDAGHm9iciLL0tGzimBFTzp1Ht+ECC/YMiITg5doG3X571pUNX8UJTJ89GHES/PRibNKDvD2e2CKhR0jXUgd2yF8356MKKPNInMPKSLGgFBoBUilchmM8IEySNUStGoFwu2OzUNUOTZYh5jKUdSmVJ39vwhVlsJmzESkteWoJFMyWfLDHqiWpA1d0av5OtFX55nFyJQYfbVTsS/wB4RcPNJIjEeWLZ0ewWZMqUlCQyUJCUjYAw7IIw9PNGhiPQPLBEe0VUhO9R/dYAfeUFD7ESIrp9sCZrELJUtEkXUlTG5zt5R+ilplTs3wICbCJqQUkEAgioNQd4hcEoUMWIqho2SoIJkyi+uWkv0Sa0g06JkfUyhUYIAzGoRLlikvq/kVCgKdY7xCoLIydHSgXCMCKXlEPRjdJbsibCW7x4QuGAUFCmiDZVlCzLWtSysqWgqAAu0BlpIzSGUxZwujsq6AZTl/Y+lKmMagoLFsDeSK6wTwjET0Sw7pKTrwrsI80jqeltED0VctJUsgqmJKzeVevKWQ+plFIAwAAjmkxCqhk7MR3xx4yqR3YDuNdDO25ASX6TGpOsRYaG/Vm8H6RILgUZLZ+e6cdFhaCC9cD4uHrE2wWC6m7hWm2g1xjOSUDqhzEFSU4XO7wMHeY9EZ69W1vCLY2Sort80PGEzLGfaw3a2wuRz5zbQqDNXld+943YKfPJA9QAUxx30aLY2E+0re3hdEJVYj7R4dnqw86FSKe/u4iBFv6MdZ4H8ECHnChI0dt4E/F4eTozaeJ+MTEpGyHLkYZmOyuXo/3j564aTYAT63ad2cWhlw0ZbPieHxgzMdmX5Q6bmWRaZSJJmhSAsqdVCVKS2B9l+uKdfLabnZSP3j+GNpbki8KZeJ1GIK5Y1DgY68OUMquPyck4zcm1L4MqeWqs7Mfvn8EeieRejTJsssLTdmKAXMGLLUASl82on92OZ8kNECfakU6KOmrEUSaDH2rvU8dmJZMdeEo8yVHJjuXK3Y1MU5hECBGxzgiJZj0pn7Q/ypHgIlxDs9FzR76VD7JloD/eSvhDQmSIhqmWhMuc3NqmMtUkF0pLJZCVHVeZz70TAfOLb26uMItNnStLK7CQRuUliDuMOgsrrHal/wCHQpGMu8VCqQoJa4KYsXZ3rR2LJsWnpExMk3rptClCUhXRWvmz0w1cAHg0WJYEsonrFAwWAtI6J2BXVegXZtFKRJmFKiygbqkuWVdCwWfD1hDsRYSZiFpvIUFJeikkKScqKFDWkPCXGes9gs6VSAiQuX6OpZlS0UQOcF2ZeCVFKhUmuumqLqVOMqWkLUVKT6yyCMS+7MAZ0gbHQJyC6SEpLPU4pBGKeiXfAhxvyhu2WUTE3XKVAhSFtVKx6qk68wRgQSDQmFS5odW1VC7uClJcbHpvBhwSmJLmuRNBrIgAKQ6k3iAFB3S+BBILbDVthjk/Kq1WWx2lUqbMCCemjorLoUSxBSkjEEdUdGtOh0qnieklK2KVAHorGV4Zka4pOWuiZU1MuauWhZQTLJKUqoTQOQcCCG1mMcWKcbfobYMmpUnuYVPKOw4i0J60r8Uxc6GnJnIvyZgWi8U3he9YAOOBFdsM/omzl/mZY3IR8Iv9CWJCJTJSEi8aAAZJc+dUedi1WlnoQbvUiKs51nto0INl29g8RF56KPLYQBZ9/nqjn1NbRnzYzUPldy2F/VxpjtMHMsx9omuZHimL70beOv8A2wRsw1Ft/wDth26DQoPRla+1PwgRe+jHUvj/APnAg1C0YBKNJe3ZeC/jDiBpH6yyD91fiqL5CAav2g9uULCR7R7IrivouwuGur7soQjSP1tk+4v4wlUvSH1lk+5M+MaEja8NTB5eFxH0XYMi6vuUsvn7pE4y1KfFAIF1g3rHF3hCyrUO2sSLXLq4JAz4490Q0WVUxaUJJdSgniWcxvF2Q0kdH+TfR12SZqh0php9hLhPbePWI2M5UQ9ESAiWlKQwSABuAYRJWax6MVSo8ucs0mxMCBAiiQRBtyubUJp9Vrkw+yHJQs6kpJUDqEwk0SYnQIAKedZ0S5qubmJl2if0mWSsLEsJBaXfBASCPVI9Y0MZPTnLG0yJy7OnmJq5aQqZdQpN0KAOCpzkgEFkvQglhGzGiwlQVLUEsClIUgLCEmpSguFpSadG9dDBgI41y1loRpW0Bd0/q1LUSUJHRs61KDLf1UkBBJqQa4RMpVsXCKe5oEcv7W6AJEo0+b1LAdJrzrAgD1SxqKZQhPykWi6kmzyrq13QajpkhVwi+6anEsNsYezpkEOZFVLDpKlVIWoqBD9FIpgWdSmINAi0yJFWlSybgKWchQSgYdNmrjqZ3iOLL6jXhL6zocv5RpvTK5CEplrCZpdXzZ1MCSfVxFNojeJ0dLMsy3PrLUSFOQZilTCKuAPnCwIoCGjgSdI3SyEoSFEuQkBmK2ahICbqhU1IFS4Mdg5DaWlWuVMnWVaD0wJt6QpC1LCEgKV88oVSBUajSKhKUuYjEhGNZS90bohEmiHqXJJcnIV2CLUrA7vOuIJmTk4ygoe4vpfdWlIH3jES1oM5JMmYEqBq6WUlTUCgeknF7pFXB36bbGW+49P0tKloM2atMtIWpJJwBSsoc0oKO5oHxhi3aMRzEyVLSEhQWoAe2VGY77VEmIekeT8y0y0om2iaFpUSVSyEhQOKCkggpwIeoKQYvEyrgZiwfWcy9VPt7MmhtWgTpnLArUluvy0LM62j/wBMbOEZ86iYpRVmxTk13GuOuF6SsxRPmIcsFqbYHcAdRAiVouS6CSVesQ1GwFQ2dezCPIncT1opSIHpWlXoqxb+bnU7YUP0r9fY/wDSX4xdyZA26sfyYQ8JYGfaYz4j6LsVkXV9zOGXpX6+x/6aocvaV+ssX3Jv4o0BR9rthC0tr4mFxX0XYOGvfuUN7Snt2L/Tm/igRcdHWe2BC4r6LsHCXV92Zs6YfLthSdLnVGbRMESCoNw81Ea8JGtovDpY6uyI8zSh1d/ximXNoWEMLm0o0NYQm0XXpRUCcItORiCu0u1JaSreT0UvxJ6oodFovSyT7Z/lTGz5A2cATFe0tKepIf8AqjbCj5qObHlUGdHkBkjdBvCXpBR3Hmi4EEDBwrAECBAgsARwr5U5hlaQtKlyVXJolhMy+EuBLTfugpLuwQcujHdYo9O8lLNa1XpqTeo5SWvNheGB34xE1ZcJZTz4nS8sOrm5hW2F9AD3ipwoN7WIGWEMHSYZIEpVAwHOoZrrAKdGQSMga4x3g/J3Y+lRfSxN7dTaKZvCx8n9jBBuroGHSNBszETXt8mnE9/hHBjpldCJcoOaglwQS59ZdPWXqG2Op/ITLaVbDdKQqcggU9gkilMxhrEaZHICxC70FdHDpHHXv2iNFLlIlILJCUgFRCQBhU0GcXHT0InLN6j8R7VZbxvJN1YDBWsY3VD6Se0YhjHmrlFy5tU20C0SrXPQSAq4lakplHEoSkMkpG6oxKi5jrPyecvZloQmXbUBEwslM4MErJLJExI/VLUaAtdUaULA6PSjOmzeWa0giqWUCy0FixOA1EHI5g9UNTbYFEALTRXSq3RY4a+ld7YctdmvVDBYDOcFDNCxmk9mIzBopmhZS50udcnpmy1E3XWpCiUlAdZdJSAXDENRw/Rh2JJGV5Zo/wAUVBwFoQvfin+mFaHnXZRcE9M/SDsycsevbEjl1Z2ny2ylgfxGKGRPKaV3M+/EEPh5rHm46uTPVwNYI0SdLIwZXGDOlEajv74zi56VVoDV2Skasah6wyte3sTn+93Rz5DoSRppumEjBKi/dXZDc/TiNvXSMwtYyLZZV7TDM+ZexJzo5+EPIqDLqab/AIiRq7RBRlOcG3t+ECDhorKiKmzvs8+TDypG3u64Xz2Xnqh4Klmjvvy890dOpiRvRvLjHy0NT5AGuJM3WASDqfuiLNnA0ANPJgVgSdHLZBFS6iX6kjLdG/5CqdA+2fCMBYj0evwHZ8Y2vICfUp95+I/KKw+c5/EK4HRiYIGCEHHWcAbwoGECDEAhcCCBg4ABAgQIABAgQIAEwIVBGADzfyx5DKsNuCUoUqzzVEyCBeJz5n9onLWGOsDcybRJs6ObnWYJstpZUqfeCkgqlpTzU0klKVsKpJCSKMaN0rS+i5VplKkzk3kK6iCMFJOKVA4ERzXT+jZllvptClc1MZJtiUX5U5JoEW6QKCaKATgxNC7iMsWCnWY1w5UqRr+S+k1gpss++FFKlSFLqpaEG6pClOby00IJJJSa1SsxpY4BpC2mz82my2lMw2WciamSCZuCCr5mekdOQUKU6F3Smorn3yVNCkhafVUAobiHHZGkE8upEtzBcvJzWhI1Sx2qV8IzFtmklyAS3rMSc6O7dkWvKyaZlqmKBolkDqx7XinWioSVYjji9fhHFi6yZ6WAqihAOs6vZ3mDK3OZrkonL3YkCzACjfR7qwoqbLAnDaIyo6MxBWgtgab/ABhiYkuQ2rt4xMVMUXuszeX2wybOomr5Q6DMR+Y2dkCJno+xXGBBQZjLWlar4ANCwckUdsQMGwi1tOjgELIvBSEveKjUgOzYZNg4eCm2FKncDV2NWETLCsi7ziiDjXHChOJFBwjou6MGh3R+kAUgBJ62FeNOqHLWzXsAGYe1VnfPGH7FKCBV6YUfhqiDb1qmKZ6A0G1gDu64l7lIdsEy8CXYXiADqADPF/yXtfNzwSQyqdeXjFFYpZSmtK0psESEliDWmzhGeapWTKNqmdvlLcAwt4zPI7TQmywlVFpoR4xpQY7YytWjzZRcXTFiDhMHFEhwYME8HDAVAhLwYgAOBAgQACCMHBGAAoJQBDEODQg1BGojODgoAM5aeQuj1rEz0cJUCS6FLl40NEKAiw03pBFksy5pHRlo6KRmQLqEJ2k3UjeIslFo5fy00z6TOEtDcxJLu/6yaKdaEV3qPuxEmoKzSClN0UAD1UQVGqiMCtRdZ6ySeuJEmUm6QbudDTIBn8KwlJOoRY2FN5Fbhc0STdwA+kxAjiu2eitCumKKcCW96optx6zEiVPCjdUGOQNXr54xMXoxJwUGegoRn7RBHnfFFpKWZZqQ2QcHcak1bdDopOy4tNlQzULHBsOuGuYHdr7+EZi1aUWkslQALOrGjt9I5PsiwTaFpWJalKUWDMksQah01YgiG4NCv0Lr0ceXg4r2PtTOCvhBxNMde5PXYsaPqpDBsCnGWykaDmg+EK5hJyHnqjLiBRnl2AnIdnwhlOjC+GWLf3jUCzI1CAZCdQgzjMpN5P2eYypktKla1EgjZRWDk9sI/wCGLJ9VL+8v8cXlvWEqAYYZnaYjJmbE8YriS6mbgm9hjRmj5chYmSQEKAZwpZpqIUog9YjoOhdPpmMhRAX2HdGFMwahxgue+zx+EVHGlFkTwoyR1hKoU8c70dynmS6EhadRNeoxobLyvs6vWJQfeFOMdUcaMjklgyXoaQQcQJGlZK6pmoPWIlJnpOChxjW0ZNNDsKBhnnRrEEbQkfSHGHaFQ+8GIhL0hLGKxxiJO5QyE4zEDeoQsyHlZcQRjNTuWtkTjPl/fB8YrrT8ollTgoq+ykntwhcSJXCl0NqYjWu2olgqWoADWY5pb/lImKpKl3feWR3JPjFFN0jMnqBmqKq4E0HUIzljJbGsPDN7m15R6bNoQqVKmKlJVQrSQFtndcG7vZ92MYlXJNP/AFdp++n8MXEg0dh96JAXmwx1/ARzPFk/U6VhxjsUKOSif+stH3kfhjR6G0dzMu5zi5nTKr6rpOCRdoGy/iMJE06hXYTxOA64sbGbyThi1MHAGo7e2Eptjog2wodmF4hnCS7bxR8KRRWvRhXexI4t4xrlS3pTzlWDFiGrwrmMPGGUnRzyzaAKUqTMCV4gAqIAJoFggiuw0i4s2giNaTm5ClPkCoUem2NYZAGT7Wywy80hLbCNoGeRxjSUs25K8uxSfo1PkflAi9dXv8PygRNILZRI+ES5WA3wIEIGLOHWfCEKwg4EDEiBavWHVCBhAgRjLc0Ww2cYJWUCBElAnYxHn+MCBFIERpsSrHAgRpAzmThhFVb84KBGsTIr9M/qB+73qjPoxgQIg1Ww6mAiDgRQLcfs+MXNi9YQIERIo0EvBG/wMOaoECMxepD0hh52xoORX6hf7ZX8kuBAjRClsXox6h4QhfrH7I74ECBkiJmW/wAIbOfnKBAgQxECBAihH//Z</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAAApVBMVEX///81NTUAAAA4ODg0NDQ+Pj5BQUH4+PY8PDwvLy/9/fv8/Pz6+vjz8/P29vQYGBgjIyMoKCjd3d0bGxsWFhbr6+vGxsYqKirQ0NAODg6lpaW8u7kICAjBwb/i4uKKioqwsLDW1taDg4OPj4+pqambm5tJSUl4eHhPT09jY2NYWFiVlZNzc3O1tbNsbGwvLzPCw71FRUAOCxNfXV49PDchIh0ICgBYlyxQAAAQ9klEQVR4nO2aa4OiuLaGY0AjV0FuguAdtLSs6Zna3f//p513JQG1quyZM3P6w56TtxsJJCR5slZWQiljRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRkZGRn9LHlv02t60eKb8/1RPGtGdmG/nczr9E3keY4diMv2k8XQ8xudnTZ4KeZ+Lq8p0Un7isCDcxoeNj7uC0yExlWVkMZlUaetLjW6yb6JLa1pcGJvz++7c0l/Q/ZlA+RFyIsekz70fpbEek8mnQXso09+b/GxwfyK+Yrti9DAMd+Px1dDcDZLt2M6gwvlb+u23355nfmjvL+rRwPGa7Rzb+hLxT+u850tnd0ohdZKXSTJLh4zZo2530k9K7mG/NMInns9y1mxdTL824h3hkyG4Sw5z4mlTo59l/ukEoxb+FmFBNuzbf66vCdUwKIe1PzI/5P9lD/v0cJ962oE/I3R6wucM/x0yhP9fCK1hvskLmVBne/S4TNj9HBnm2C8Yn0+NoDO2vPvsARXKHnmdXU9Ie5jxsOJO9Pr8sAjfb1U+XttP9hv/SHoDMv1yc/VTyV3ZiPpkg7CQtSV1mZZKdJ6VD0rT8n6lKpO7S1rLii82bP9MGNZpPEuwmN5Jra79xYfMD0pjWgV7G8KwRRRHkTyk4ltSX/9USfzltuefKUrw77GZpxef+5jEvZeuLb1tHnaAv1S/uPo7TdUnCO3e1Xu3H9N2/0/cbvJ5bg4Zk8kwiT/cUdvs/tB3fz1hIUOobdnTiUx13XhyQtCaIvo83Q4+3RT/fAeDHSz8v99Tfy7+tNpPec8b6eOUWhvIS1WksUcnZ+xYcVF04/fpKSqcyUt37nTI1qR2v2zctak/5YqiyupN3HDX7jNGzsuu3bTVmzOydcy3VKHRsAbpZmR230yftIfNoaztttO0+tqs0ajf/U5HwzxUhJZ9jgvbijsrjs9xbE+cERxILnSWXu7k8wOqbEg31beqEpY89Fp66zONIvxiOhlPLafvvPXY+7vV7q7m0bDeWrKcdbujFkDrvo/0z7Z6UhDui96q0kdPYyQwNU8juOsJnVI1DFtfS/b/1vchzx7aUF217Nu4ykd02yPHHryhN58aElvm6OduZrSHhkZW/xJgyccGUqsffrQwnTrvL6e303l6I5SwjoM827am3WkyAeLEcizMyPF4hBk7sk5UIw2/Ta9qVG4ytmTbjkNdG65tZ6TSuCe7jLKopb8ed+OuQzlL1TOSf9SQnaUqOvoDx7jTbDJPjp+NGEHliAP9xAO0O6HrKXVrPNF5thxfil4IIc5UE16UDaO4O/3+xx/nl9PLiZfd+6isz+/dS8fL0zkto9OkrE90XZeTs430+ff3CcohL5Z558l7x+vJ2SnxQHee1OXplNTFiRKUV9bdeYz0++Q8LsuuS9JoYpXp5DTtJmltdfYshcucpmU5mSBvbCHRIa9MR52d4oH/dHhuPEnKaEKFTv85dWVpd6ijozooLy4T5KXT7j+/T62osB4Jk9Z3l5yv2IIdOF+wfc1dliMdZawo31jO+Rx5V85zti65QN6m5gHj6ZHyMuTllLdLa0pXJWfMma3ZgurMWcP5llUp0kt2KLnHTsmZbamhHM/VS9bWqGOpmpkkJ3oOOe6c8wOrajz8jeqYsy49uxnnG9YwmYcHGta4sviujMOA89b9FgbBJaG/XtHO+6LW/qTKMqBtg9yv6jL31hEPRcPWUbQKoujNu874wm/8KkmX3rHgWbD0qwgd5sUrW9ZoOvc2s7JhRztZhUu3jXgQRPaRNUm99a5sWdYLtnZQbsOQl4XdCIRlnYdL5CXqpod+p+mCje1OES7FgqeVVyX1gsrxess65xSueHTwG3fLi8pr0nLpLkOUW3q7OAkCnl7Cb2EWVJHata1ZWzwQhnlYoXKxS3gYNOySgDCO3ti15FuvCQ8Jb7wduh8uvWpWgzA+unJwGxDWObUCQowbHo+cI1umGDUQ8hJ+UfC5B5Pgcf/snNmirnN/yZo62XhtwlfhhjoMihg2rHnuX32Y+eDB9iD0lmTyU9yBsDy4V3/Oo9bL63LpE2EJwigFYXnxm4AI5V8gb4QzSVjPw1xUvF54IBQg3CfKhi4RBt/8Q1o33hH2hZ2QVoTk3W7jbmYY9mNBhF77HYRxDEI8J2j8f8C743LOJCFsKAkxlOh5XW7cNuWZf2BNCTtNImVDlwjr6oGw04T+0tWEP2BDsa3LK/wuDUIQiibLwkNES9MdYXK4I+QLsZt9IPwBQnhpynMiFCCEDTPGo6PfE6ZEqGwIQnipIpxLQnR4HZUrIkzgAl1xdqWdlm4zEMJL6wdCARt+Teg+EIZb/oxwz6rPhDURprAT5qEifHWXP2qyoSKMuR8smSLsbbjUhIMNA2nDBoRyDvGFux8IMyJkixINNV6D3rltyTOxofl6R7i891KaDPDSqAuznjB5QvgtGAgLEKpIMwNhxctVkIsW09E7pnIermfxKki+v8JL661o3N6GPtkwIS+NjjS4Kw/zEIFDETbuRUaaeOdSFPJllECkSchLXSIMJtKG9UKQDWtFSF76QxF6ilAMXiqu7IGQXcmGF7f5wWkeznlNhGVG81DkRJjIbwfIhpEi3AyElSYUZMM0zoIkOrrXuoR9pQ0FIo0bEm2aPRJK+iRDXkuBqoh2ZF8QusqG6WxFkSblgeiKF5dWC9H4CPgIzES4gZ0o0kQnbUOBnh8ElpeFf/VyquMsCWvYEJHm+8WlpeaeMNSEQU94gQ2lNRNJWK+CBXnpPDhqL5WEydHXhGhMErIAhLNEETaDDRGhoogIKyIcRTtMLL5CZKfxdy9lsnKvbEOEpwiEmA4hEaKTaDSDnXJezl29VmrCjdjQtFkqwvfvXaAJsWhc/AWvGxCuiHCfgPCHJAzCjSIsPhJmRIipE7xqL02LB8KK7ESEGdkwybx7wnQg9HtCF/MQXqvm4QU2JMIZEcYvch4OhGTDK0ai3irCmghDacM7QgYbSkImVwsi5Iqw3CjCEqvFB8LIUoRB1vIUhD62FyvvLeV+BpjUybJZtANhOheLsCUvPfY2nKl5eKV9S+MeynJBXroKc+WlEXnpH3yFaCIJMQ8RkW6xlGwocn+INMGVnG7rDl7ahNKG5KWYr4rwu/TSSsXSPebrj6Xf9ISptOE94b2XEmEpCckkb2o9lITJdxDCfYKcgvpCvEpC9FR76UAIG77Gch5eJCEizRWEfSzdRfXc25AHByrSgMKnWFpv5K4NeUSIXVsfS0Pamel5qDxd27DyrjdCd7AhgnRa7olQ9DZsiXB6T7h1NWFNXrpLtA030ktpqEFBXkqrhbbhhgiXRJh7b4g0WP8uvQ2JUFx7Qrnit5pQ71sQIymWEmGl4mVPyK6YhyViKRp1N2q1OH+fgJBX0kuTPZOEV4F5CEK4f/ATwpC8NNCE4iWpfRAeZ3aWpZIQXpojWGhCsmFKNkx2mpBi5MJ7i2kesssMhEm0xoYFkUYRYrjkejgQUiyVcVYTunIjfbMho2jCJSFWf02YTII7LyU/oD0NbcalDYO03rtEeE3k18nOQDi7iuwyEGbipUwxD9mxHAVZme7cDad56MOGW/91JgnbEu8dfHZkRIg1T76TvCazDDv2S8q9YIZ3iyVVtnwgRIeDcJK8a0KiujJqdCCsO/WyQBS88jdyf6PnYTrG3hM2lCv+WhOGRCj22BcFCScbhv51pggr7GnGmjC4xKkI5tjH/cjYux35IQidaZhF8ZptkmgeLlgbowdHB4Q5yhUgLHbsmtCuDTELu+s3J878hnbegaDnlrQbA+EM7wxr7AbwblEVyJs4IERoQuRp0pl6twB9HmE9nNC7RZkQIVaECm3XC8RgbF+27KXowpBuIq+MifA79gwCrxQbto/qQHxHo3kYiqW04bgYCJOroM2MH87ZhV73XjgiDQh5xDA+F3oxzMTCrcghXzlnRMtLvB/yHZORBqNM43/keHFYUh1CcL6miRXAhlf5zknlQMi551n8hWy4xWg0ZAZpw416j7T573I9lIS8pYe3roylW3bmlvDJhg3Zl+YhxxiBEH6w0426C02It30QHmL5l9Jk6YcsY36wEswNXN/1mYvIwljm+2zOKM8NFz5jK5fSoEc6QymkXeRh5408JnD4vkwjb8t8N8BzS4+xgHnIY3gHVOW2qk7MQ6br97yN1+cFOHug8vq2MWr0fEDP+ajHX3p0Hbor5OXCR3sBygqRMYx+EPhNIv9C+0AowrkvgpUvMnkOQ1CE/tYN3Rx5WxGCUIQLVwjKz90w3Pq+vMZ9t8Eh830BwlDQ/cb1qU6sh3jeE17uhWzjhd7CQ3nkb1F2yQKx8EIfBwgDL3eFe8V5IQIQBu63AOWC0F3KMgF2eTi7obf0Aj938SyumxB9C3GN8xxrIQhFM7sjJH+dSUI3JMJg7suz7O1W93wuVK+JWhGiZVcEC9dHi9RjH+V8QdfovbqnyoYg9EDIcthnw4hUoPehrLuha5d6L2Df0EP9mHMg9EJFSGQopwk9Gj2UdxtJSHmhJCPPRIQZCPM7QvlTnRmeDLQNe0Ki8OdC+LmvbKHtJeZEpu7BhqoHihBkviZEOeoBymLF14ReTxiyhkn/8JaKWBMSrYB9Qk0I/5GESLOBUF2DkOy+8AP/G+gUYQBCpB8JI/kDqEQSCj/AvMsUoU/2IQpfe2a4EL6Q9pR5QhNKGpe86wOhT3YmwgZzbIt5g2sm7QRS2MCb+x5oMBKeR56LfQrqwH3QeAumCcmPpMeGLhF9c0HmB5pQ4DlJ6GtCscIBjxWL9EYov5JJ0DqijLgRCmknMVe9xpnoviaEtz4n9OkvWveEypbPCcMPhIEi9IIboRt+ItwS5Y3QX6QTTbiJB8KQPDOTkaYnFD0hUUnPeyB0fU3oU+T4izZ8TrihkfpEGErCb2pOPhDmFJGeEZbyiy0ijCRrukUkD3EEiLY4EHspcmNFuDv3aeR5mTqGvK1O07HQ563OW9yVyRH1t3f3ckarhSrfpxd39czv6pjLOmiV8HDtqfY8uu/RasPmgvqPM0ZzDi/txmOHNgzKmrtD2x7bdo3j8tZe1q9Vu3+77HevuD7v13Tev1zWu5f1Dsd6d97r8w7n/Xp9btf781qed1T+5bLfv7Q7PLNfv7dt+7a/tOf2Up2qS3Vu9+2pvezf9vv9udq35/3l8n5ZX84XpC9Ubt2+t/vqfLgcXvDMS9XiuBzeqqpCvw6vl2rzcjhsXnG8barNsdpsjofNZofzHse63VzXsNxU2jA7F7QgWpyX6lvlJIlifS5wqOskxjnB/bjQ3ycX+rtwpGN9HReJPut8XTZ26Kyf1WUiB62pMslw7fTPIR3rspF6VvUlShL1ZXyCZ+lGSh1Mo6hMcUoTOmZlmZQ151P5g8aE/KKVv62w6acP8kefI/ocjS0Lt+ibUxyO/g0HfV8ywn35n75EHb44ol+C6LPdf2Uof9xnO0VcoFt0xFFRxLhy5L2icGL5q0Y6I8cp7MJ26LspqkN/h2VPbfndDxWmZ2g06VOmqQ6qEGc11gmIgQhIzlP6IcPLSv5MOPjFyp7rQ/bfq+Sm1SD9E2H1K+h/rzxF5/1axp/W/r9o+i8VVYW8/uTJ1L/Zhv9uOCMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjo/9y/Q/D1i64cO0+FwAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhATERIVFRUXFxUVFRcYGBgVFRUSFRUWFhUWFRUYHiggGRolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDQ0OFQ0PFSsZFRkrNy0tNysrKysrLS0rKystKys3KzcrLSs3LSsrKy0rKystNy0tKysrKysrKysrKysrK//AABEIAMwA9wMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABAEFBgcIAwL/xABJEAACAQICBQcHCQUHBAMAAAAAAQIDEQQhBQYSMVEHQWGBkaHwEyIycbHB0TRCUnN0krKz4RUkYnLxM1OCoqPC0kRUZIMUFkP/xAAWAQEBAQAAAAAAAAAAAAAAAAAAAQL/xAAWEQEBAQAAAAAAAAAAAAAAAAAAEQH/2gAMAwEAAhEDEQA/AN4gAADzqVox3u3t7CNU0guZdoE0FqnjZPnt6jwnUb3tvrLEq8yrRW+S7TzeLhx7mWjaGYhV0eOj0nlW0nGKlJqySbbfMkrtkFIsmtOmKNGhiIzmtp06iSWbu4NK/AQQ9I8qlGN1RpOfS3ZdiVzXmiNcMXSxkcRKUpXnWlVg5y8nKFR3jFLhHLZ4GI4Kb22ovLN9Fkm3l6kZfrVo6NHDUqlO6lJXbvf2iK2doflGo1pRjKHk5NpK72o3eSV+bsMp/wDnv6K7TlfQmNksVRlUk2ozjJ8LJp7jpXDYqFRbVOSkuj38BEXP9ofw9/6H0tIL6PeW8AXJY+PB9x9LGw4vsLWBCrxHEQfzl7D0Uk9xYyqEKvgLPHESW6T9vtPaGPkt6T7hFXIEWnjovfl7CTGSe7MgqAAAAAAAAAAPmc0lduyLdiMe3lHJd/6Hlja+1J8FkviRyxKq2LlCpULFSgAqUcipQCqRrvWPUbGydXyNWnXp1L3jVbp1I3XzZpOMuuxsiE0fcq8Iq8pKK4vJdoVz5S1B0nRctnDyzjOHzJq04uLtsTfMy56T0TpevSjSnhcoqytCafbexvKFaD3Ti/U0z7y4ruA55wXJtpGc4ylQUbW9KcIJ2tvzcubgbX1W0BXoN1MRVi2428nTT8nHdm5Ss5PLgt7MqqV4R9KcV62kW7E6dwsN9eHqTUn2ICUWDWPTNbDyhsQg4ST853b24tXTSasrNW6zxxuudFf2cZT6fRj2vPuMW0ppideSc7WXoxWSS6OL6cwLnLW7Ecypr/C/eyj1oxP0or1RXVvMf2/Hu8Zldvx43IC+f/ZMS/8A9P8ALHrW4o9YMR/evsj8CzKfj18/qKqXw6uIF3/b2I/vZcObf2D9vV/72XHm3dhaVP3PqQU/e+0C6/t/Ef3su74HpS1kxMc1Wa6o/Assnk/Uu25Ryz6137wM40NrxKNo4lbS+mklJeuKyfVbrM5wmKhVip05KUXua8ZPoNGqp712bi6aC09Uws1KDvF224P0ZLc/U+DJFbkBG0djoV6cKtN3jJXXFPnT6U8iSQAAAAAGP2abT3p2fUC6Y3B7XnR38/T+pbZQa3mmdx8lQAAAAAFo1h09Twsc/OqP0YLe+l8EBJ0vpWnhobdR/wAsV6UnwSNYawacqYqV5ZRXoxW6PxfSRtJaRnXm51HdvsS4JcyIcmFRJxPnPiz3kiiiBSisyfGZFgug94sD3Uj7i/H6Hgn43H1t+H8QJCl48ZlVLx4/Q8dvxv70U8p4396Akbfjx+o8p48e8j7fj+nvRVT8eP0Ak+U8eN42/Hx+BFc/Hj4sp5Tx49yAlOfx/VlPKfp6+L6CP5Tx4958up48b/YBKUl8Pe/UV2uHqXvZE2/HxfMug+K+MUFeT/XoS4AbO5LMa5LE0r5RcJro2rxf4UZ6YdyZaEnh8NKrWWzVrtTcXvhTStTi+mzb/wAXQZiZUAAAAADzq0VLeus9ABb6uB4d3wI0sO10l5KSinvLRYnFregXmVFeMy2aapyhRrSowUqqpzdNczqKL2U+stSMb1p1jjhY7MbSqtebHeor6U+jo5zV2Lxk6kpTqScpPNtv3Ld6i34vSdSU5TrqTk3eUt937F6j4p46D3S93uAmbXi3vDl6+1Hgqie5p959X8ZAfbKJ+rvPnaG0B6RfqPRS8XRH2iu14yAk7Xi1+8bXi/xI9xt+P6gSb+P1Q2r+E/gyNteP6Bz4+O0CS5eP6595R1PH9fieG148XPmVVLe0u7x2ASHPx4t7Sjl48W95AnpCmvnLq/Sx5/tG/wDZwlL1L4AXPb8fD9EfNSuo3baXjt9hCpYXE1LJJQvlbn7FvZmWrvJbVrNTxG0o/wAd49kPS7WiDFKGJqV5qlhqUqs27JJZX9iNp6k8myoyjiMdJVayzhT306T5m/pyXYunJmYaA1eoYOGzRgk+eVld9m4uwUABAAAAAAAAAAAAo1feVAGE6c5OaNadSpSqypSm3JqynDae9pZNXee/nMUx/JbiFdw8jU63CXerd5uECjQGK1DxdPfhav8AhtU7ouRa62iqlL04Th/PBx+B0mC0czpJcyfqlJe1s+tunzwn1VF74G/dZMBSeGxMnSpuSpVWm4RbTUJNNO285v1dxEqlbRcZvaVWvCFRNLz4OrFNPqbQF126PCr2wf8AtR8TnT5vKdewbznqJo9/9LHqlNeyR5vk+0d/23+pV/5io0XKXC/XY85OfMb4XJ9o7/tv9Sr/AMz1hqLo9f8ATR65TftkKrn+Uar+dHsufDoVOerb1JHRdPVHAx3YSj1wUvaTaGhsND0MPRj/AC04L2IUc1UdEzqOylVm+EbvuRd8FqBiKm7CVn0zTgu2djouMUskreoqKNNaN5KsQ7bUaNJdL25dkU13mV6N5NKELeWqzqdEUqcfe+8zoEFv0boXD4f+xowg+Nry65PN9pcAAAAAAAAAAAAAAAAAAAAAAAAAALfrB8lxX1NX8uRzDql8o0N9pp/nQOn9YPkuK+pq/lyOYdUn+8aGX/kUvzoFHVoAIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACBp/5Livqav4JHLupy/etEfaKX50TqLT3ybFfU1fwSOXtTflWiftNH82IHWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIGnvk2K+pq/gkcvamfKtE/aaP5sTqLTvybE/U1fwSOXdS/leiftFH82IHWAAAAAAAAAAAAAAAAAAAAi43SNGir1asIfzSSfUt7MX0rylYKjfZlKo+hbK7ZfADMgaY0xyyzzVGnCHS/Pffl3GDaZ5SMXWupVp24XsvurIsHSGN03h6P9rXpxfByV+xZg5LjpirUmk5PO/sbKCDsUAEAAAAAAAAAAAQdO/JsT9VV/BI5e1LX73on7RR/NidQ6d+TYn6qr+CRy5qU/3zRX2ih+bEDrEAAAAAAAAA8sRiYU1tVJxiuMmku8D1BimluUDB0b2m6j/hyX3n7rmC6b5X55qjGMOn05dry7gNySkkrtpLi8kWLSWuGDoX2q0ZPhDz32rLvOedM694iu3t1ZS9bbXUtyMbxOlak98mWDfGmOV6nC6o0+ub/2x+JgmmuVXFVbpVXFcIeYu7N9ZradVvez4AvON1iq1G25PMtdXFSlvbPmnQk9yLjgdBVarUYQlJvmim33FFqc2ymy2bJ0NyR46rZypqmuNR7P+X0u4znRHIrRjZ4ivKXGNNKK+87+wg0XofCSdWnl9L8MgdT6J1FwGHt5PDRb+lO8335LqQFGSAAgAAAAAAAAAACDpz5Nifqqv4JHLWpnyzRP2ih+bA6h1jxMIYbEOc4xTp1EtppXbg7JX3s5a1VxEaeJ0ZObUYxxFGU5N2UYqrBtt8yS5wOtwW+npzCy9HE0X/7IfEl08RCS2ozi1xTTXagPUGPaX1ywmHvtVFOXCGffuMA0/wArcs1RUYLj6Uu/LuA25XrxgtqclFcW0l3mL6X5QMJRuoydR/w5L7z+BoTTOu1as25TlJ9LbMcxGkpz3tlRt/TvK3Vd1S2aa6M5fefusa+0trjWqtuU5SfFtt95i0pN72UUW9wEvEaRnPeyJKbZJoYCctyMr0DydYzE2cKM9n6UvMh96Vr9QGFJEijgpy3I3joPkXirPE1kuMaau/vy+DM80RqRgcNbYw8ZSXzp+e/X52S6kgrnPQuo+KxNvJUZzXFK0euTy7zP9Cci1V2eIqQprgvPl3WXebuStkipBhWiOTHAULOUJVZcZvL7sbLtuZbg8FTpLZpU4QXCMVFdxIAAAAAAAAAAAAAAAAAA1/yw631dH0KMcO9mrWlK07KWxTppbTimmtpuUVnxZsAwrlR0I6+HhXjTdWWHc5ukltOrSlBqdNK6e9QeWfm5JuyA570vrFiMRniajq3555vqfN1FphUXm2i3Z3WTeZKnB0pJWi5K17q9n0X4HpOvOEXJLN3ze/psyoueF1lclaeXTH3p5k1aRUFtQk2pOMXsytvdltvmXS9xiMU/T630rnLvh6SU4tLJ9LV11AXPWXyc62xhqzeV1d7cZW3u6Xmvflnzeow+qpKUoy3p2frMg0i7StC8FldJv2t3KYXV2tiK0lSpym28lFNuyy5vUBj6RIo4OUtyNu6ucjdaVpYmUaS4enPsWS7eo2ToPULA4azjRVSS+dU8936I+iuwDQGgNQsXirOnRk19JrZh952RsrQPIzGNniqqX8NNXfXOXwNuJWyRUirFofVDB4a3kqEdpfOl58u2W7qsX0AAAAAAAAAAAAAAAAAAAAAAAAAAAAOTNZ8HKhjMTSne8Kko+tKWT9TVn1lwnGjPB1U8p2Uovg4tXy6VddZt/lO1BjjE8VSajWhHz08lUhFX380klbpVlzGnNX8PSr4jD0HUdq04U1sxv6ckru9ioxRTkk0XLRVWptwWypbks9l95srWfkkrJuWHUakUna0tiaaeSlGWT6XddCMQpat4nD1oKvSlT86UfOUkvNu7p2s15r3AWzSrl5S2yovpafN0HUmrGHpwwuHdOEYKVKnJ7KSu5QTbdt7zOdtJ6BrVqyjRj5R8+wpS2Wkm1kunmyOhdAU6lHC4anVtt06UITSd84QinZ2zGqvAI88Ra97K3T0Xy4jyr6N9rZ7tm/AgkA8FWeWSz3dOV8lY90AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ9Mv93xH1VT8DOYeTqmnjdGu9mq9Gy4+ejqetTUoyjJXTTTXFNWaNU6p6h4WhpSSg6jWH8+kpSTW1mltWjd2vl6le4GzPJ73ztNXSe58Vzs+5RvfKWatzdOefPmyUAIvkvStGWd758eGeR9Rp2+b38VYkACO6eVtnj87PPpKbH8L333r6Oz7CSAIiVrJXVs883ut1kpFQAAAAAAAAAAAAAAAAB//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUQEBITFRUWFRUWFxUSFhcXFhcSFxcWFxUVExgYHSkhGBolGxYYITEhJSkrLi4uFx81OTUsNygtLisBCgoKDg0OGhAQGzUlHyUtLS0tLS0tLS0tLSstKzItLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0rLi8tLS0tL//AABEIAJIBWgMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUCAwYBBwj/xABJEAACAQIEAgYDDgMGBAcAAAABAgADEQQSITEFQQYTIlFhcRQygQcWIzNCUlRykZKTobHSQ8HRFSREYoKyU5Th8TRjc6Kj0+L/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EACURAQEAAgICAgIBBQAAAAAAAAABAhEDEiFRMUEEMhMiM3GBsf/aAAwDAQACEQMRAD8A+GxEQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARPZ5AREQEk4TBPU9UaDdjoq37z/Lc8ptwGCDDPUuEBsAN3Pcvd4nl4nSWRqXAFgFGyroo8h3+J1POWTY8w3DqK+teqfaifYO03ndfKWeHcL8XTprbbKi3H+ogt9pkBGk3DibmMTdWtDiFX57/eMlitn0qJTqf+pTR/8AcDaQ8NTvLbC4W831npN1XV+j+Dq+tRakfnYdiNfFHupHguXznPcW6E16YNSgRiKYFyaYIqKNNXpHX2qWAtqRPolPA+EzFBkIZSQRzGhv4ReKX4NviET63x7otQxwLLloYnXt2tTqne1YD1W/8wd/aB3Hy3iOAq0KjUa6MlRDZlbfwI7wRqCNCDcTjljcbqtI0REgREQESww3BMVUGalhq7qflJSdh9oEi4nC1KbZKqOjfNdSp+wwNMREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBN+DoZ2sTZRqx7lG/t5DxImiWeHTLTA5v2j9UXCD9T7Vgb2qX2AAAsFGwXkP+vMknnMM81M0AzbKXRaWuElPRMscM81B0ODEvcEs5nCYi0u8HjJ0iOpwlMSW+CDCVnD8UDL2g4I3m0UWJwBXWVnG+C0sbTFKv2XUWpVgLsnPK3zqZPyeV7jmD3AoBpCr8MG8XGZTVWV+fuPdHcTg2tXpkKTZai60n8UcaHTWxsRzAlZSpMxCoCzE2AUEknuAG8/SdGiy3Ck2O45HzHOZJTZfVAW++RVW/nlAnG8N9tbfHuA+5zXqWfFn0dN8pF6xHgl+x/qII7jPoHBeBYTCWNCguYfxatqlW/eGYWQ/UAnQ+ht3TNeHnunTHjxiWoNTGVDrnb2sZqxtfrU6uuq1k+bVAcey+x8RrOowOEp0aRr1ACc6oC1rIGZVzG+g1bfwmriFOlXoVaoyZqVTLnpkFXHZ5gDk3jY8yDON/Jx79LPG9NTDxt8R6W9CVUNXwQOUAl6JJZlUalqROrKBup7QAvdhe3BT7vinym6kgg3BG4PhPl/TjgwpVVrUVAp1s1kUaJVW3WIo7u0rDkA9vkxyYdbufBLtzERE5hERAREQEREBET2B5ERAREQEREBERAREQEREBERAypoWIUbkgDzOglniGGY22Gg+qvZX8gJE4aPhVPzbt90Fv5TaZYleXmSzXM1mhIpmTaLSFSEl05Yiclawk/BYokA8jseR5ad+olBj9UIHO366yywlNkCjP1ilFIcKAL5VBXMCblbBbX0y8r2l7edDpMLxCx3l7hOKkc5wFV6gYlUqGyEqFAsahPZz31K2Derre06/o1jadGlUxOLoPVFNKRyKgZiXcKQqtb+oEt5ZjKSbdXg+LjvlrRx6tuRKH338LDC+HdQBqpwlS9zYg+r3frPcdxfD1qQr4RGVetamb0+rOiU2uBuR2tz3GTD8jdk1pbg6mkUMlJSScLQ4ow75PpcbYd89O2XZJh1mb0gJyuM6d4bBlErpUZqlJamiFgAWqLplQ63TW57pDb3U8F1bE0MQwuRmFE6M2YotytgbDS/dPLfyPP6tdHVVuIrTBFlZTurbGc7xfjuZOqRVRAb5V1ueVzYaeFpXdI6dYV6iKAFDGwZ6anLyJGYWvfu5ymfBVzyX8Sn+6WThuUz8b/yf1a09xNe8hYviDUqFepTSm701SsnWoGysjqpZL+qwR2Nxr2Zvbh9f5g++n7prrcLrGnVGS5ahXUDMurNScKN/nWm+TPG43ySV8hxFXM7PYLmYmwvYXN7C+s1y9PQ/H/Rqnsyn9DPPehj/AKLV+7PN2ntrVUcS6PRLHfRK3sQzw9Fcd9ExH4bf0jtPZqqaJbnoxjvoeK/BqftnnvZx30PFfgVP2xuGqqYlr72sb9DxX4FT9se9rG/Q8V+BU/bG4aVUS197eN+h4n8Cp+2eHo7jPomJ/BqftjcNVVxLFuA4sb4XEfhVP6TE8FxI3w9cedJ/6RuJpAiTDwuuN6NX8Nv6TWcDVG9Op91v6RuGkeJsaiw3Vh5gzC0ux5MkW5AHOeT2m1iD3QNmLoZHKZle3ykuVOmtiQL+e2mlxrMnwhCq11ObZQbtba5A215HXnaxBOeIQsBUFMqABmbUgtcjN4d1vCbFfOmWmjM2pZrXIW1yABy0Jv4S+BhgOHNWDlSoyLmsSbtrayAA3P5DmRIcsOEYl0ZsilmKkDLbTUEmxUg7W25yHiKbKxVwQwJuGBBB5gg7QNcREgl8MHbP1Kn+xh/ObXE94QU7YN82RsttrZWzX18uX2czywrXM0mMzWVG+mJJpzRTkhJpGriXqH2Sz4K5ynIK2U2uEc5QbD1uzqxt4WAlZxH1D7JJ4ZYr6q3FhmzWJFr2y899/ASfYulLnMAuI+SfXOX1gLi1JrNY25cvZOpsxwGJ7Fe+TD6B7Pfrhs2TQ9+n2SmwwQVA7KnZsQXKZc2ZbLZrane4Olpb0UX+zsWBSo2CYfTrrqQMQg1YVNN97/bMZ/f+v+tRQ8SFQVCOqx/q0/WxCg6op5UyLd2u1p1XAHccOBK1gfS6mlSoGa3U0vlZBp4WnH8Xpr1p/u+E9Wn/AIpm/hpfU1Qb+FtNtbXnW9HlX+zNKdAD019FqOy/EUtb9YdfbJPmL7SUxjdzffH7ZuXGt/m++P6SCqj5lD71T982oF+bR+2r+6ejbDV04q1c2FKelWOEX4nFLRW/XVxqChufHy7pS0Xr9S7f37SpSF/7Rp2F1q6Hs87fNOx1HOz6fil/cy64T/wmnXNigbdfX9Xq2289ZzVNsN1NTs8OvmpkG+NzWtUvlB1I1F7G2176W80b+30np4zDHVgDUHxfq4jIPUX5JGkcUwqrgsLVXrA9Rqpc+kkE5WCgXOhFuQAnnuhOBj6vxP8ADPa62/xa75dJlxXGI3D8IoaiSj1wwGY2Ja403GhG844/rHWs8dhAuBpV1NUO7OGPpLbKygAH1eXITPhuHU4KpVOc1A1NQTiCbAsb2Pqi/leY8QxaNwygitSzLVqZltewLXHZ3GlplwnEoMBWTPSD56JC2AJXOblV5/ylT6YdDOFjF1WpVKlZVAD9jEBibXGXQXAN9/CQOKLkxjU1LhVqqoHpWwBAAsdeXM3lj0C4vSw1ZqlcgIyhLqmxNyCba20O0gcYbNjXdLMprXVgikFcwsQfKVfO0LgwNWoKRqVQHNJCRigSA9akpI0319u3OW/TfALhXFKi1XKFpm7YogsT1lyc/wBXlppKvgz9XUWoytZWpMbUkuQtakxtrvYS76e8TTE1BVoZypSkD8CCQwNa4ObnqPDUSnnblq1durpnPU+V/i17++2u86zob0bTGjPUrVwKap2UxGbMC9W9youPV5Tm3Viidlt2/wAPT8PGdV0R6SrgxkqU6rCoF7SU6a5cr1dxfX1h9kUu9OS40ClVlV6thoP72BoNBuL8uc6Lod0dXGsTVq4hVppSOVMQDnzGoCGIFwOxv4mVHGiXqllBIYkgmjS2LG2+s6Dohx70Jjnou61EQE0xSUrlaprYWzet38opd6crxxWSqyI9QKrVFA9LA7K1qoG6k7Abn9LyZ0d4Y2KenQavWpgmscy4lXPZWmbAZdf5TLjFCpVqs9OkxUtUYfB0r2arUYXut9iJN4EcVhmp1lwrOVNUZSEXRlQbqmn/AElWzwx6VcK9D+Dp18Q16WYs+JCm/WKugy6bznuHY6oaiDrqxu66emKb6jll18p2PSKricZZxg66MtMqR2WBPWKeyclzpfkJz+D4LixUUmjiAA6k3AGlxf8AhiIkdN0c6NmrhVxlTGYs5kdurXEDLdSwF3AuRpynDYvi9YZD6RXF0Q6YtO61/U123nedHuO4vD0BhqmCd1CsOsLdsZix2KgHfwnE4vgNchB2xZFBvUUai9948E39o9HjlfI59IrXABB9Kpm3aA0OTTe3tmlekWJ+l1/+apf/AFySnBKqq4Z1F1AF8RSBvmU827gZXVeFuN61IfWxmHH61JfBp0XT0Bjgah7T1cHh8zMEbMxzWJf0d8xPaudBoNJzpUC98Gzld7YdWvrbskombv0Gwk/3QuO0SuBoLUap1WEo5jhcRTKrW+EV1Z1V+2ABtuGF9hOTbj6HQpifZi3v+aW/KdJpyWHE+O5ENA4VQmYjQKgLKQWUgAhrNa4vuPCV+H6SVKd1pUcOma38ME3BBBB77gH2SPiMPVq0ziEpt1SEk6lgCzWLMSblibXPOw0AtI2CwFWubUgztyVRck2JsB5A7DlIjOhxWtRYPSZabcmSmitbzy3/AO0yw2IFQManafQs1Ttll2N2IJFgBtINKk7nIou3dbW/dJXD3NCqesAGhVlYHUEbC3sN5YK8zyesNdJ5IJfDPjLd61B7SjASQwkPA1AtRGOwZSfK4v8AlLCrTtcHcEg+Y0MsStAEyWMsFrbyokU5KpiR8KQw0k6lTlGrE0wVOY5RY3bLmtpppfvt9sm0KVABTQqdZdFzZlysrWBI0cgi5I1A9WaK4Ugox30lnh6YCqoRRlAF1UAnxa1gT42v33j7ELEFlZAuUGoeqzMzoFD6XzKdOWpBGg0nU9EuGPjcNicOEp0XqLTsKwawIxFNspDG5Nr2HMysp4XNbTnf7Np3/uaYQnEsWJ+KYnU6nMm8xzeMbWsPnShxXuTYtnHwuEUlRomGUiyKqk9q+p38yZ0vAfc9qphjhHxNEOK5rErh6ZGVqaIFKAgA9km8+kCgPH7TM0QDUCeH+bOuvWODT3Nu/FD2YamP5mSE9zpOeIb2UaQ/lO3EyEv82ftnrHzDpR7nNTE1Ka0MWiChRCHPh6dRyTUquGN7BR2rWHdKtPcsxfVVEHEFAJFz6KqkFM2xFQado62M+x2EjYviFGl8Y6r4c/YBrLjyZ/EPCj4vwnCMDisQrEZFYutSooJAAVVVWGp05T5N0k6Z4XC1GpphldgbdV1lX4O3KtVLkF+9FXTYtcETvOnfSsejVno6ClTZ1JG9X1abW7gzA6z8zOxJJJJJ1JO5PeZ2w4tTyneuyxHui1yezhsInklRtOVy9Q9wkc+6Di9wuGFtvgENuel7zk4nTpinaumbp3jdg1ADuGFwx8t6Z7z9sx9/OO36ylcWsfRcLpba3wU5uI6z0brovftjtutQfVoYcfpT8Jj79MfyxBHklMfos5+Jes9G6vm6Z8QP+LqjyNv0mtulvED/AI7F+yvUH6NKWI1E2uD0qx/07F/8xV/dMW6TY474zFHzr1f3SpiNCxbjuLO+JxB86tT+s0vxOud61U+bsf5yJEozqVWb1iT5kmeTGIGV4mMQPYnkQPZ6WuNftmMQLaojHCoUqsVzOXpnQK+wy/POQ38Lt3masNhqgoVKwLqhITT1XsQWUnwuv3ppHEKgonDggIWDtYC7MLhbtvYXOg02JvYWwp42oKZo5j1bHMUOq57WzgHZraXGttJRu4NVZaoZKppMA2RgL/CWORdxYFrC50F78poxeIeoxeo7Mx3ZjmJsLDXnoAJ5hcQ1N1qIbMjBlPcwN1I8jY+yaiecg8iIgJe1DmC1PnqGP19n/wDcCfaJRgy14NVzA0TuTmT61u0g+sALeKgc4+BlkmD0gbXBOuw3Ml5YCTVm4kuqtsJgGbDmqaaBabZVqqMvW5ibjW2YDcacvO/tBJoOKcoA7kquy37I7zba/jJPC8TTqHKGF+48x3jvnPhwuE1fbfJlMruIlMZazHq0qNcAJUUMCDYAKpGp1vpyBM6XD4EpZWXKd8p1yg65Zng1KNnQ2bvG8lPXVe1Ubc6ljz8SZMOPKclyt8LnyY3CYyeW/DYUTuugGHtUqN3IB9rf/mcthWUgMLEHYidj0HxCXqJcZzlIHeove3lf85r8j+3XPj/Z1OMxBprmCO+oGVBdtTa/lJEh8Q4lRoLmr1FQcsx1P1Ru3snz/pP7pdVezw/Dqy658TiSVpUgPlOq627rkEmwAJIE8GPHll8R2tkfS3qBQWYgAbkmwHmTOa4r03w9K60r1W/y6J947+wGfDek3upYus2Wg+VR/EZVZ2PMqCMtJe4KL95M59OnHEAbnEu/hVC1F+xwRPRhwSfsxa+04/pnXqaZwi/Np6fa2/5yofid+c4vhfTOhVsuKTqG/wCJSBal/rp6svmub6onR+ilk62mVqU/+JSIdPaV9U+BsZ7MOs8RzsrLG1hWR6LNZaiNTJOylh2WPgGyk+U+QYzCvSdqdRSrqSrKdwRvPqZQyHxzhdOvQqPUXtUqLstUaMoRbqjnZlJAUA6jMLEbFnj9mN+nzKIic2iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICZIxBBBII1BG4PeJ4Z5A6bC1xXUuLdYBeoo599VR3d45HXY6ZATm6FZkYOjFWBuCpsQfCdDguJ0qulQrRqfOt8E58Qo+CPsy/Vll18lm2+tSzIR5bd19fylvwTCVWplmNqCdoZtLVreqlySbaC40N5DfDsgBYaH1WBBVh3ow0YeRmylUO2s58vF/JZZfhvj5Oks0uqFSVvF3PXo1gcq3XNqmbtFiwseQA2+UJklablxJBBG42PcfCdOXC54XGMcWUwylqz4WHpqTUTq85zZLZbX3OT5N+7vE2VMUx2NrbEH9JFoCtXJIDOdyd7DvY8h56SBxHpDhcNcZhiavzKLfBA6fGVho2+yX29ZZOOdMJjaZ3tlbItXtlbEYmrkpqbNVqEsSdwiDd3I2UeZsLmcF0q6SnFEU6Smnh0N0p31ZtutrEes5HsUGw5k1/G+N1sU4es1wtwiKMtOmpN8tNRoPPc7kk6yui3YREQEk4HH1aLdZQq1KbfOpsVNu66mRogdL7+8fzrI3i9DDufazUyTK/ivSLFYkZa9ZmW98gslO/fkQBb+NpVRAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQPTPJ6Z5AREQJeA4nWo/E1GS+4B7LfWXZvaJa0ullUDt0sPU8ShQ/wDxMo/Kc/EDqV6YD6JR+9Vt/vmDdNKtvg6GGpn5wps5H4rMPynMxAsuJ8dxOIFq9Z2XcJe1MH/LTWyj2CVsRAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQERED0zyIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAPDw8PEBAVEBUPDw8PFRUPFQ8PFhUPFRUWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGi0lHiUrLjcrLS0rLSstLS0tLS0tLS0tLS0tLS0tKy0rKy0tLS0tLSstLS0tLS0tLS0tKy0tLf/AABEIALUBFwMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAABAgADBAUHBgj/xABCEAACAQIDBQUFBQUGBwEAAAABAgADEQQSIQUTMUFRBiJhcZEHMkKBoRQjUnKxYoKSovAVU7LB0eE1Q1Rzg5PxM//EABoBAQEAAwEBAAAAAAAAAAAAAAABAgQFAwb/xAAuEQACAgEEAAQEBQUAAAAAAAAAAQIRAwQSITEFE2GRIjJBgUJRcbHwIyQzUsH/2gAMAwEAAhEDEQA/AOHQ2hhtABaS0a0NoAtobQ2htAFtDaMBDaCiWhtHtDaAJaS0e0OWQFdobR8sOWAV2ktHyyWgCWkjWktAFtARHtJaAV2ktHtFtKBbSRoLQQWSGSALJDBaACSGCASCGCACSSSASSSSAPDDaECAACNaECMBBRQIQIwEYLIBAI1o4WELAK7Q2lmWTLAEyw5Y+WELAK8slpZaC0ArtJaWWktAK7QWlhEWAJJGggCmAiNBAFIgtGgtAFgjWgtKBZIYIICCNBAFkhggAgjQQASSSQC8CMBCBHCwUUCMBHCRgkgEAjBZYEjBIBWFjBZdToliAASSQAALknoOpm7wvZDH1LWwrLf+9alQP8NRgfpI5JdlSZ5/LGCz1J7BbRF/uFNuIFbD3/xzXY3s9i6ALVcNUVQLlgudAPF1uo9ZipxfTK4tGoySZJeFkyTIhQUgyS/LAVgFBWLll+WKRBCkiKVlpWAiUFRWIVlxEBWAUWktLCsFoBXaS0ciKYAsWORBaAJBHgtKBDBHtBaCCwRrQQBYI0EAEkkkAzAI6wKI6iQoyiOBAoltNLm3DxPIDUn0gEVeZ0A4k/p56HSej7K9lauOIfWlRvbPYF6hBswpg6acCx0B/ERllHZHYR2hiLEEUKNi9jYtmvlQHkzZTc8lVjyF+34HCLTVVUBQAFAUBQFAsFUclA0AnP1mr8pVHs2sOHdy+jA2F2cw+EW1KmFJFiRcu35qnvN5aL0UTd0qKrwAHkAIUHhLlE4rnKbuTs3UlHoAMYoDrYE/1zhMkJtB8nndu9i8Hi7lqeRz8dKyNfqTazfvBvlOYdpuxeJwWZ7b6kLnOgsVHV11sPEEjqRwncwITTDCxF/66zdwa3JB0+UeE8MX0fMtpCs6x2w9naVM1bCWpv7xThTbroPcPiNOoGrTlmLw1Si7U6qFHU2KsLEf6joRoZ18WaORXFmlKDj2Y5WIRLCYpnqYleWKVlhimAJkgyx4DAKykQrLSYrGUhSRARLDFIgFZEUiWERSIAhgMciKRAFgMYiLaUAghgMEBBDJAFkhkgGcBHUQASxVkKFRLKpslub6/uA6D5sP5fGSmlyAOJNh5ze9i8D9p2lT+JaH32vMUyFped6hpX8CZhkltVszgrZ1DsVsUYPC06ZHfF2qeNdrZ/SwQHol+c9OolVCjlAHQWl4ny2TI5zcmdaMVFUhhHQxFHhLEEwTDHEcQCEkz1TowYQIbRAYwaW0QBmi7S9l8Pj0tUWzKDldbKy36H/I3B6X1G90kMQySg90XyRxTVM+f+0fZXE4EkuuemP+agNh+ca5D53HQmaEifTlWirizC/H6+PKeU2p7O8BWJYU92Tzok0vQDuD+CdbF4jFr+oqNWenf4ThtopE65V9lFA3y1qq6Hi9N9eWm7HLxmDX9kp+DFNwv3qSNr0uKo/SbK1mF/iPLyZ/kcuMUzoOM9lmLUXp1Ue3J1enp4ZM/wBbf6+Q2xsPE4M2r0igJyhtGQnoGGl+djY+E9YZsc/laZi4Sj2jVExSY5EUz1MBTFJjGKYApMBhMBgAMUwwQAQQwGUAghgggIIZIAJJJIBslEsAlamWAyFLaRtdvwqW8m4L/MVnQvZDge5Xrn46opj8tJcx9TWT/wBc8Vs/ZGIxNLENh6LVt1us4SxIRixFlvdjenwFzOtez3AGjgaCsCGyZ2BBBDVGarYjrldAfyzQ186xM2tPG5I9WkNzBIGM+ebOgMt5beVK8svEWRjqYYoMhmVkKNqbRo4Wka1Z92gKgmzNqTYaKCZTszb2ExRy0MRTqsAWyqwzZeBOU62uR6zzXtEYYhEwaVUpsGWu2c20swVbdTqfkJrvZpsF8PiMRWqFT9ylNSpze82Zv8CzdWnXkPKzwc/j2nSCYt4l5LzQcj2otDxgZj5wBqQPE6aRPtadSfyq7D1AmUZNkaMvNJeUJXVuB1HLmPMHUR80y3EosmHtPZ9PEI1OqgcMLEML3HQ9RMgtAzyKdO0XbZ899tuzp2fijTFzTqAvTJNzbml+drjXoy87zzhnYvbLhg+FpVedOqNf2TdberL6TjhM+k0mbzcSk+znZobJNCmAmExTNk8gEwGQwQAGCEwXgAghglICCGCAQwSSQASSQwDOVo4aYwaOGgp6Ps52hr7PdKlHvZ2OekSctRbrlBA4NcGx4i/QkHtyVznqNbjUfx0Byj6AThPZ6lvMZgE4/f4e4493fZ2/lvpO44Re4vO6g36k6kzi+JvhL1OhpEZq4rwjjEDymIBHnGbZu0jL3y9fX/eWBpreMtSYKQcTPBtDm66cTMZCesxtt1zTwuIbgRScD8xGUfUz0jbdIwao5az/AGzH42o61mFPBtWJw+VmVtGAIbivfIsNbhRpe4972MwyUTiwpNhWpUrOWJDJQp57kk8Xdzoba25TmPZvd132gWNHNXalhkWpUqUahWtVyHchdKmgF1PReRInV9gJekz8d9iMVXGoYZKlZ2S1uWXLYchpync1724tq9EaWnW6Vm/VvHjFxFYIpY/LxPT+ukxlX+uH6zW7Sds4UEj94DxI/wAIv4mcWKt0bj4MHb236WHp7/EVd2l7KBcux6U14jz49SBw8DifajSzHJgi4v71SrkZvzKFa3r16yjtZ9oxFd6jtdFJVFr4am6qgGnf1YXtc266Ty1TDUvdalR/8FatQYfPEXUjwAvO5p9JjUfi5fsaOTJO+DqnZvtph8Yy0lLYerbMKVU5lOmu7e/H0OnC1yPcYDGFxY8Rfj4cQbcxp6jyHzmcEuZalMYimUIINFaWLAZfdIqIyWNx0nWtjdrKJOGDN36iUg3ddPvMxpm6kWXgwAv0mrq9F9cfJ6Ysv+x7ssYM802E7SYaqAVqe8mfTv2TMUuSlwO8COMz0xtNjYVFJ7umZb6i66cdROXLFkj80WvsbalF9M8p7WnH9nN41KWvhnXT63+U4mTOt+2PEZcLRT8dZR+6Fdv1VZyEmfQ+Fr+3T9Wc3Vf5AkxSZLxSZ0DXCTFvITBKCSQQQQMEkEAMBkggEghggEkkkgFoMZWlYjCAeo7FAnaWG5kU6hHLUYVyuvpO30zYAfKcN7D/APEcPyvSxHHr9mqgn1Bndcs4PivzROnpOmMhEeIFjzkm2DJeMqWhUjpHEcEsCrPP+0Kuaeza5HM01/nB/wAp6MLNH28RTszGZ9QKDEfnHu/W098HGSL9UYT+VnL+w+1EpUlpmpVUnGLiWS1A0WWhTNVDdhmFTOlhY690AXJt1dsZhdm4ailetTpLTppSXNdScigHKi6nhfQTjHZrZ6PjMIGNkWqKz/kpA1W+iGavtFtypjsVVxNQkFi2QH4KXwoByAHqbnnO5qMHnTUb4XL+/X7GjinsVncKPbvZbEAYtBcA97OvK/xC4485bXrU8QzGjUWoHBsaeSoBYU9cwPgR8p881qpPFs1ieZPTh0m37HbY+w4tKpF0cbupbXuMRqQOhA06XE8n4fGKuLd/z9DLz23TM6reme7UVCLiwfGUiDf+Ef1zmGK1Wo2Usz8wDVwmM8rU7Ak8tNdfX3vabYlWtfFYN2qrVGZkRixuR7yD4wddBqbmwINhz8pXFSoDRuwRu62HQOWPAWyZr/1zm5jyRnGzylFpmNVTu3ekBY+9WoVcONbkW3JtyPEf7et2E2RFOYgpTqPbfOFVsjFe7UF/eK8eBjdi+xlY1FxGKoDDU1IOQGutWoeIUrn7q3tcHU2GgF2HpT2UxziswC1N5m96qH1LBjZHpgDUWtf9JjLPiUqsRhOro0VWgWVkC5r0sNQUNTQrme1Y6obnvKfIn5yzEXzZBUyjEYpCu6qsgFOxtc6i+Wqt18OHCZuI7O4wOGbCsfv3rXC0iNLbsfdVL348jx9dXUwuIpBM9KqmSnVa2XE013hDZffQgnRef++UckJdSXuRxkvoWYtHrWSrTzmtiMwR6VKpuwwBW7AhrHfA34kC+s1uI2ThagrNuVQir3Qj1sKAlqjFTvAy5rBdB8vF0xWZ6V2DGnTepb7moRUUsUuwIN7LTHyUeT0KgyUKZYpmclQm+W4d0p2PEcFc+nWelNdGFpmur9l6ReoqVKq7tbnu0sQA/dUqSrKfeb8N7A8bTX4nszUQKRVpsWBIVt5RNgcvxqBxB58pvX2gHSu7ADeOi5SKNTRiz2v3TxQc785k4etTDUVLMu7WgyhN6i5O9WqGoBmHBgAB0NzLchUTx1XYGKBcCiamQsCaJSsAQbH3CefLjNdVpsmjqU1I7wK6jiNZ7WlVVqdZmAbPu6djuHuWbeAk9xifu+B118LSzG4phTpkkoGNSrlTfogViFy5SKgsN3cDgLy72TYjwd4J7+psxKlVM9FDT31LCsypQ/8A2VE3ih0ZGzWzNw4a26axdh4dyxZGp2So/wB21VFGVSwH3iMBwA1bnHmImxnk5J6AdnUdXNOsTkUNYqlTUsqgXpsT8X4eRmJU7P1gGYMjBSoOrUtWvYfeBfwt6GZb0TazUyTYjYWJy1H3LZaQUu2hUBjYG4vcX5jrL8bnqtQc00ZKNOjTYIrUkaxuQSvAm9r6X4xuQ2s00E3JWkcU7mgNyc9kDFQO7ZTca8QD43moamw4iVMjTQskkkpDIVJYtOOiTIRIBndlqm7x2DJ4NV3B8qwNPn/3DO94UhkVuqqfUT57yHipyspDKejDUH1ncuze0RicOlVfjGawt3Sb5l/dYMv7s4/iuNtRmje0cuWjcqkcqYivLVecVI3hckFpcDeHLDgSxEmNtPZ9LFUXoVlzpUsGALLexuNQQeIEzrCTSVJronZ4DtJ2UwmDwWNxFBXDLhK1NQzs4G8GQ2vrezEcec4o3HTW4J11tx4+PP5z6a29s1cVha+HJtvqTpc62JGhtzsbT562hs58NUajWp5HQm+h4XtfXQqeRH/zteHZXJNSdv8A4ameFU0uDV01vpmtr0J+enkPpLMPYXuhPQm4ANxx6i2mvWXr4G1oVB6G1rn1t+s6TNdM2+w+0eJwRy0Gz09Tu6oYAX1Kqbkr5XI0nq6HtIxDK1sN7qkkLVBQWv7y7uw4fQTn+Yk5SdSMvC9z0HO54T0+w+w2OxZXNTajTHx17qAv7Ce8x+QHjNbLDElunX6/zs9ott8G77JbVxW1doU1dstHD2rstLMi933FZuJu3K4HdJtpOuLoLAAWtw6TSdn9hUMBR3NFeJzMx9534XY+WgE2qnxnF1GdTn8KpI2oQ2rkyc3hKcViAiOx0yqTrp5SZ55b2h7U3OCqKDZq33Y+fH0Fz+7Jii8k1FfUTe2LZw/atTf161Y672q7i/4SSVHyFh8pjLnXVWZbfhLLbyt5n1mxamJU1OfUpHJMX7TVAy5yRctY97XQX18hLl2pWDl+6zFWW5W2hUqbZbcjI1OVFIolmVh9t1KYXKACr57jXULlF1YEGwLfxRhtdc9MlGVUWmllyk2HvEEW1JufMzXlZWRJSLZv6HaAZ3d3YX3rAHMwFRla1l1A1PHSSjtKmqViGUFlVBayE3cNfQrwCn1nniIhk2Iu9np6eLvh3vrnqIouc/dUMxHeDaXKnifW976eLyUALkZ6x5lfcUDkwtrUPAcuHKePMYYhhYZm04C5sPIfKRwRVNnvjjd1s6q62vWxdCl7yUyVpI9RiGdLe89PU38DNNU246pu3pNke+YGoQKmlgS1rsQOBueXhNLTxlWqi0jUslE1aouEFncKGPVr5EHOwh/tCs1MHuqKdhnVVRm4DISPf96+vjMdhlvM6vtUNTSlulC0ySvvFtSSQX94jXhfkJi7WxprLnZERiQv3KCmMoB4jmfHylb46m7K74dVXvKRhy1PUDkCSAdRfTXw5YuJqKxsmbKCbZ7ZraWvbTgJVEjlwUWkhknoeZskl6Ga817coRjSOUA2yz1/YTb32apuXPcqNdSeTmwK+ANh5EeJM56Not0EYbTfoJhkxxyRcZGUZOLtH0olUMARqDLBOL9lPaHUw5FPE99NAGFyRy7w4keI18G5dS2X2gw+JUPSqqwPiOPS/Xw4z53UaOeJ9cfmdPHmjNepuJA3jKw8haajR7F2YxwZis9tb2+kwNodoMNhxmq10XzZf14SxjKT4VkbS7Nq7TCx2DoV1C1qSVR0qotQDyuNJ4ja3tUwqXFFGrHUXAsPU2+l54va3tGx9e4p5aAP4e+3qRb+WbmLw/PJ30eMtTjXqdOxvZXZJ1fD01IFu49WnpoOCMOgmBT2PsGmT3KdxoRUqVj4+676zi+Lx2JrG9Ss763szMQPIcBMez9T6mdGOglVPJL7M1palXxFH0fsf7BT1wyUafDWmiJ5Xa2vrN0tcdb/AFnyxRFVWDIWVhzUkH1E3+zO1G06BGSqzgcqgz382976zxyeGN8xl7mcdWvqj6KFSKLTkWz/AGj44ACrhN54oSv8pFz/ABTZt7RcRY5MCxPLMVUetz+k1XoMydUvc9lqMZ0fE1lpqWY5QBckzjPbHtLTxlfu1F3dO6rrx6t/p8zzmF2j27tPHArUXd0z8CGwI/aPPy0HW880dm1ea28yJ0tHo/Ke6Xf7Grnzb+F0bYWOqkHysZWyTXpgKq6g5fIkS9aVYcag9L/5ToGqWNTlTUjGyVP7wfwiKabf3h+QAgFTUjKzRMuNH9pvW0U0R1PqYBjtRMRqfjMg0V/q8G6HQQDENPxg3Y6zKKCDLAMbd+cIpS+0EFEdSQoJvl0HgIu78ZaYDAK8kkaGCEcXgFI9IymWo0FK1w56S1cEx5S+m0y6bTFstGGmymPSZmE2Q6NnSq1NuGamWQ+oMyqdSZKVZg5GSiZ2CxuNp2ti3NuRWkb+ZK3+sz121i/+of1Y/QkiaYVo2+ni4RfaXseqbX1M7EYmtUFnxFQ3/C27PqljNbU2RRY5mBYnmxLE/Mx99JvplFV0Yvnsq/smgPhgOzaI+ES01pU1aeibMWkL9hpD4RGGFpj4RK2rxd/MrMaMtKKfhHoJkU8o4ATWDERhiJiyo3C1RG381AxMP2iY0ZGxq1BNfXtEavMarWlRGLUMpLQVKkpZ56JmBYWiFpUXil5SFhaKWlReKWgFhaKWiFot5QOTFJi3kvADeLeSAwCSXkgggZIIYAolqmCSQpehmRTaSSYsyRkI8uV4ZJ5szQ4cw5zJJIUmcwZzBJKQBcxC8kkqIVs8UtJJMiAzQhpJJANmhzmSSQoC5lbtJJKQx3MrYySTMxYhMUmSSUgCYJJIAJDBJAJJJJKASQyQASSSQQkkkkA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhIVFRUXFxgXGBgYGBkXGBgXFh0YFxUbIBgYHiggGholGxceITEhJSorLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGyslICUtLSstLy0tLS0vLS0tLS0tLS0tNS0tLTAtLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLf/AABEIAH8BjAMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGAQj/xABKEAACAQIDBAYFCAQNBAMAAAABAgADEQQSIQUxQVEGEyJhcZEHMkKBoSMzUmKSsdHwFFOCohUkRFRjcpOywcLS4fEWF0PTJTSj/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAECBAMFBv/EAC8RAAICAQMCAgoCAwEAAAAAAAABAgMRBBIhMUETMgVRYXGBkaGx0fAi4RRCUjP/2gAMAwEAAhEDEQA/AJxiJo+lG3hhkAXWq98o5Dix7h8T75EpKKyy9dcrJKMerM/aONKCyKHfSyk5RrxJ4Ab9ATNLiaVWrpUxDqPo0fkh9rVz5gd05bA7aqZ7uxa51zfHwnYU551mpm3job56TwcZNJj9jYVAajI7ngGqVDc+9r9/umuw2My6KgA5Bqn35ptekqXRTyJ+P/E0CTipN8s36eqLry+TaptKqNUrVVPInOvk17DuE2lDbmLUZmppXXiUNmHO4F7eU5q8uU6pBBBII3EaH4TrG2S7kz0sH2X79TsMD0rw7mzE025Pu+0NPO03lNwwBUgg7iDcH3yPf07MQaqh7X19ViCLauNTL+HoqCWwuIai2/I5sCfEdlveJohqPWYLdCs8cfVflHexOVpdJK1GwxdE24Om4+7cfcfdN9gNqUawvSqK3MX7Q8VOomiNkZdDFZROHLXHrXKMyIiXOIiJhY3a1Cl85VVTyvdvsjWQ2l1JjFyeEsmbE52p0kZwTh8O7ge23YT8+U1+Kx+Jb5zE06Q+jTGY+Yv985O+KNMdJY+vH3+SyzspZfF0xvdR4sBOFrCi/rtWqdzMLD3tczHajQ4Uf3ifutOT1XsNEdBnq38v7JEp10b1WU+BBlyRhVw1M+zb89/GXKeNr0jelVYDgpJZQOWU6Whatd0TL0a/9ZfNElxOe6N9JVrnqqgCVhfQbnA3lb/dOhmqMlJZR59lcq5bZLkRESSgiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBaxVdaaNUY2VVLE9wFzIkx+MavVatU3sd3BVHqr7hO56f4vLhxTB1qOB+yvaPxAHvkfrMmolztPa9GVYi5vvwVobGdzs2tnpo3MfHcZwizc7Px7KmUG3LumGa7m3U1b4rBu9rkVKLEBhlYesCt72G4+M5wTIxOOdhlLkjl+d8x7SW0yKK3COGz28XlF56Gg74LgM9BlAM9kFWZmGx9RNFbs8VOqn9k6T11w9Q3amabfSpG2v9U7vcRMS89BllJlHWs5RtqNasvzWPNuVRST5kN98v/puLt/8Ado+5QT5ZZowZcDzp40v3Jweni+y+S/BnVq2bSria9QcQtqa+Q3+UtpXpp81RRTzbtt+9oPKYeaeXlHNs6KpLj+l8lwXsRiXc3ZiT3yi8tyoSpfCXQqnhNoJmGmKq1ago4Vb1OL/Rtxv7IHPfLRi5PCIbwssz3pMBdrIDuLkJfwzEX90sLVp8atMftfgJvcB0Apetiaj1XOpAJVb+PrHxuJtk6IYEfydT4lj95mhaVmKXpCtcLL+BHW1sclKpSqU6gYo4e6m18uttbb/V1tvkp7F2tTxNPrKQfLcr2lKEkWvo2ttbe4zzC7Ew1O/V0Ka3FiQouQeF98yNn4KnRppSpLlRBlUanQd51J7zNNVexYPO1N6tlkyIiJ1MwiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBH3pCxF69NPopf3ufwUTmCZtumFXNjKvdlXyUf4zTDfPOteZM+n0sdtMV7C6svoZZpiXAZyZoMlJUzzHBnoqDnK4IwXQZs9l7IqVu0LKm7MdbkbwBx8d3xmrQXIAOpIHvY2H3zu9k4OpSVlqVRUGc9WAgTJS0Cpoe0R9LjLxiuph1molXiMerMOj0ZpD1mqN7wo/dF/jLO09gABTQQsS6h71MuWmb5mGYEEjTTjrOhEsYfG06hZUqKxQ5XCkHKddDbcdD5GXR5btn/0/maHEdGGF+rqBuQcWP2luP3Zp8XhXpH5RCnefVPKzDs+69+6d6JYxuOpUlvWqKik5bsQASdw13yNqZ2hrLY9Xn3nCQDOtxXR6g2qg0z9Q2H2CCvkJo6WxqjvVRLjq2C5qiGmr3F7qwLZgPCVdb7GyGurfmWDAvF5l4rZNamMz9UouBfrLandvUS+vR/EnhTHi5/yqZGyR0/yqfX9zV3lQm8odF29usB/UTX7TH/CYe19nijnstUKgp2qMylajVGClAoAKkXvfukqtlHrq84WTSbUxGSmTxOk7foNscUMMrEfKVQHc8bHVV9wPmTI96QA5BJb2VVDUaTDcaaHzAmnSpYycPSU2oxiujMqIibDxxERAEREAREQBERAEREAREQBERAEREAREQBERAETl+knSb9GcqSqgLmGZSc59zCwvpfuM2VHbqGnScq4NVFcIBdlDC+v51tIyidrNtEs4XEpUUOhup47t2hBB1BB0IO6XpJAiIgCIiAQ9typfE1z/AEr/AAYj/CYqCe49r1ah51HPmxinPNl1PrILEUi6DKgZbBlV5QuXA05fpJiqgZguUKLG/tXOg91/v8Z0onKdKR2iRcHMmovqO+3Cw4/RE7afzmD0j/4/ExNnY75Vete40uALKQQRo3rDUjW44SSvRlWa1fIpA7Byuz6XzWIvmNiPukRYGo2a+ci1t2l731Nhv04yVfRdldKx+dt1frWOU9q47dvhNN3lPGgSCrVSbZF+2w/yTV7LpdW2ZcKlBqxd3XOCWKkdslQR7Xm9+cycRRUI38XDdk6AKL371ufLWY+EwiKyotDKEpL2WKsQahJN2Y6kZLXmdY2k9zZda/0F+2f9EwNsUDVWmr4Ra69YuhfRND27MBqL951mT1I/Ujyp/wCqYu0MOp6v+LO/yqnsFRl7zlOqjv0kV9QzNoYmobjJfKzL63I6cOUu9c30P3hMLDIO38ifnH4pz3etL3VD9S3mv+uRLr+/kFjadPrVCvhTWXrEGXMoy8c973uLy/hcW1ivVscjFd6bhu9rfa0xNoYdSEzYes3yyfNsNDYatZj2Rx8d4lqvWSlSxFVlZVQ1GJzbreD3O7hLtfxRHc0df0koC2WgSoNgSxBN72OikcOZmn2502OIyAUyqpdyLsbsV7Ps8AW95nHYGm9VQlMszkpYAWvYPfeLcJYOIAJUs1+rvax/V35b528KHQmMmmpI6HEbdDL2kNiSNzcACfZ75uujHT5sPloOnWUxa3rBlzWIsctiLHcfOcVjabUT1dUMrBjcEAnVUI4W3GVJTfL11j1YZELZRbMUU23X4/GIwjHmJ2tvssW2f2JTX0p4axPU1rAA7hxIHPvnrelXBgZurrWvbcu+1/pSI6dZSCBrcLbsb7ulvZ11nuNLUwUbssHsRl1HZvuCzrkzbES7/wB1MHYHq69jexyprbQ+3FT0qYJbXSsARcG1PmV+nzEht2UqlyPa9nUa66ZZeTFmnlKlCDTZCHUkWLvfhv8AzxjLG1EwH0p4HTs1rEXGibrlfp81MP6VNngAnrtRcdgbrkfS5iQybAJcA9i3q/XqfVlvF9oIRa1j7B+k31YyNiwTWvpU2cVDXqgEkC6cVyk8frDzlQ9KezrXz1LAgepz3ce6QlTpM4RFy5jUcAAHeRSH0d/+08egaa1EYKCGUMCOKlh9Hvk5I2InCl6UNnNuqOf2fwML6UdmH/zn7BkHYM9sarfXdfke6U08GxpdblTqs+TNc+vbNa3hGRsRPB9JezNxrtuB+aqHQgEbl5Gej0k7M39e3D/w1uN7ex3SBcXbONV9WnvLjQItt3dPbDq33HVOLEe374yNqJ4/7l7L/Xv/AGGI/wDXLh9I2zRvrv8A2Ff/ANc+fMZs6ooUuiqjrmXtOcynQGwOngYxVBWqMSikk77sCfjCZDifQY9I2zP5w3vo1x99OV/9wdm/zn/86o/yT57yKAeyLWHtMfaXv0nrbP8AkxVKpkZiqnMfWXeN9xu+EZJ2H0MOnuzv5yPsVP8ATKl6dbOP8qTyf/TPnDGWyU/VtZvp/SbiJY6qmRqqnwLmSV2n0yem2z/51T+P4S03T3Zo/laeTfhPnDHWDHRLZUNyzD2F4SxiKfYYgjdrq9vhA2n0X0i6b0EV6WHqB647OinLTJ3sSRYkcAL624Th8NtJ6ZzK7hydWDNmJ7+JmmA/+UxqjgUPEH1R7Nso38JvGwp10P8AyJ5Ors/msv64PY0VcVW2l1+Jk7P6UVXqrVxCpVamGRVYWGV8rFrWHa7IF7c/GbTafSWhjGp0wz0SHHXOrAhUCvYiwJLZiANNMxO4Tmq2AB1I1375jHCFXLLvO/jIjqnziXuT5+vUtLRxeOPe1x9Oh322eqpbPthKq1Fpspa73Zy7gG4G9izWy2G/uEv7Gr4vC4XEVsUioAQ1OlcEIu4+qSAuoNr6WO68jat1gdXJNgDoOB4Hdv8A9pt26X4qmgVajMGupz2YqCLXBbW4vz4bpqhqctJrt25Mc9HhNp8Zxzwdv0W6YDFVqlAqLonWZwLLYFQwIJNjdtNdQDutN7h9s0HYItQZmuFBBGYrq1rjWw5cjOH2F0sw2GoLRegEQIFZ1K9oAZbte1yedzvljobs/C1K64l8SQUqVDRosyjs3IpsSfWJU3sOYvuM7wuhPysz2aayGd0STokbYuvtI7QanQBYJUpl2z9gI+oBBNrFbnKASNO68kzscGQlVe7Mbb2JEqBllWuSe8yoGeaz6uKwkXrz28oS51tu3yoSpbJWJyPS61zc27Se8aGwv4A/smdaJznSfB1W6w0lLdjOdCbKtwxFuN7cD6/jOtHEzD6RWafic/s49qoOaodRfcQLWJNj2t2m6Sz6K75a1yG0pbtLevYHvkS7MoVnYNTo58wy5QRe5K232tqLak75Mvo62fiKVOqcRS6onIqi6m4TPc6E87TRe/4njQOl2zSDUgppVKgeoiHqzqovfOb+yCNZewwu9Vv6TKPBFVf7waa/aePprXw9I9eahLVEFMgK2UZSHvbTtX47j79nhKBVbE6ksx10uxLH3XMzSa2pFu5c/O//AHmFtSkpNG61TaspHVk2BAOr29jnM3J+bzTdJ8TRpCi1atWpDrly9WfnHsSEYciAfxit8iXQ2mEXR9/zlTifpHvl9U8fM/jLGEoWXW4JZmIzHTMSbb5fCd58z+Mq3kGDtWmp6m5rj+MJbqSd9vb/AKPn7pbqYcPRxCsLhmrixJIIuw3X1lvpFi6dFab1K1akorKfk9esNrCkwPsta/DdvlytXahSzdTUqF6hutPtFRVYm513AEXP+E6N/wAVgr3Pn3DV2yP8pqpQXC637YO5fGXPatdfmgfV/oQeU6PauxqOd+pzBar3VFKns3PVWNr9oHN+0BwkibL9GOEFNDXDvVyZWIcgWy5MoC6aLpfeTrNcZqXQmyuVaTl3IZNYlLlwe0dbdy/hLiL8qq5hY9UbW4lF+Osm5PRts4LlFJ7Xv86++1ufIS8vo+2eCG6lrjLY9bV9kAL7WugEtg57kQJQF0fX2RwH00/GVhCaZYn29TbmpO4mTxT9H2zhe1A6ix+Vq6i4P0uYHlLq9BNngW/R9L3tnqb930uRjA3kB1KIKUzfTtcBwPO8v0qFMhescgdWxBC3uwdwAe7Q/wC2+TyOhWAsB+jrYXsMz2F9/tS4OiOB0/i66btW5k8+ZJ98YI3EBmmMtP8AqH+/UHO/CXXpEqLciOftMOJk8/8ASeC0/iyaaDfoLk8+ZJ98qXotgh/Jqfl75GCfEPn79EORdT6z8OIFI8D3/GeJhCEYXvqtzbvPfPoUdG8H/NaOn1F42vw7h5T3/pzB7/0TD/2SfhJI3Hz9hMP2hrz4Dl4yhNnGw1P2Z9D/AMA4T+bUP7NPwlS7Fww3Yej/AGafhA3I+da2AJe1z6tP2f6NDf33lb4E5GGurJwP1/wn0V/BOH/UUv7NfwgbLofqKX2F/CMDcfNlXDMBYk6DcQZ7Vw/abxPf8Z9KfwbQ/U0/sL+E9/g+j+qp/YX8II3HzN1O8E208PaT8+cqNG3tnXv+Np9MjCUxupp9kfhLgoqNyjyEYJ3Hy3XACqOs9luIv6zeUCwGj3PiJ9TAT2MEbj5XxNNy2nWEZU9Vha+RQeHPfLn6JUKMBTrHQ2tcndpuWfUkRglTwQF1ZTaWMLKQvZA0IU6C9lO7dzM3qsLbha/0e6S+RNbtHYdGqD2FVuDAWPde1rzBqNHKfMWbdPrIwW2SIzfwHlNbs8VOsqh10zXXvXhbkJvNrYRqVQ020IPjobajnpu/wmvFNtchUL2h2r3Fu/jeeZGLipRl19p6bkm4uOcewVE4W/OhlmpSuLEafmx+MyaGyq9U9gVHuQbopC3tp2tQNRNxh+h2LfVgidzPfw0W4l4Uzfk5KvURjxPj4nJ4jCLYhtB3nT7++WuqcKVA4aGw3gafETstq9Ea1Gi9bOjZBcqoN8vtG55DXwE5rMTLz8StJTXBaqVdm6UHz0bRj7B2picNqlR1JNyDYhuWZbAE203eElno70kp4iiHYqjg5WW+mYWNx3EEGRKrub5ltM7ZuxK9dS9JGZQ1jY6XsD9xE00XzU2sfBGfUaeuVSbeH631+JjkZSVO8GeZpkbYo5MTXQ8Kr+TMWX90iYyy8lhno1vdBP2F1TKwZaWYu1Mf1NMsFLta6qOO4XPJbka8yANSJVJt4QnKME5S6GyXwmJtLZlOuAKl+ybixIOunCR0Ma9ar1uIYtl1C7lHIBeH53zvOjm0Wr02qMuUdYwX+qLW/PdO06ZVrdkw06yGom63Hgz+j2x6VGqnVgi70xqb+0sk/B4GnSp9XTAppqdOGY3Y6+N5xPRyjmxCDgpLnwXUfvZfOd8rA3Gh5junLLfUz6xRU1GKxhGKTbOQNUq5F33ykIW1AJvx05WmZSclVJ4gHzmA+z9fWOXkdeN9++bARKW4x4wVAyl1B3gHjqAdRuPjKVqqSVDAstrqCLrfdcbxeVyvQgqieRIyDx0B0IBHfrrNb0orFcNUsTdstO43gVGCE+RM2YE1nSWjmw1T6uV/dTYOfgDJXUlYzycTseiG2lh1I0Dk270VivkQPKS1IfxVXqa9DEqCQjKx5kerUHleS7Qqq6q6kFWAYEbiDqD5TZpnmB29IxfiJ9sFcRE0HniIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBh4zZdGqc1SmGNrXPIXtu8T5y3hti4anqlFAeeUE+Z1mwiV2RznBbfLGMiIiWKnhF5xG2eglzmwzKo+g17DwIvp3W987iJSyuNixJHWq6dUt0GRxhPR/XZvlalNV45bsbdwIAE77Z2Ap0Ka0qYsq+Z5kniTMmJWumFflRa7U2W+ZkXekbA5MUKg9WqgP7aWU/DL8ZzamSt012KcVhiqD5VDnp97Dev7QuPEg8JElGpcbiOYOhB4gg7j3TjdHDyez6Ou31bX1X2MhnsL79wAG8k6KB3kkAd5lxthNVGQjM1Sxyj27XtrvWkBex03luM1OPxRWrhxqELszvY5UAUhGZgOwA7A5juy34Td1ek+HVWoYZ+vrvdaj0zmDc71RdUo+8luXCTVDEdxm11rlZ4a7fc47a+x2Nfqaa01yqKedNVcqRdtNDZb3YW1AG9p1WAwq0qa009VRb8T3knWW8LRtqbFjvIFhpuAHAD/ffOu6LbJ1Faot+KLy3Wc+dx58pSyzdx2L1VrSxc5eZ9v36m06PbJNOndtHci/NV4Lrx1177DhNhicU4pqTTaiQ9irFSLWJzBkzdkHfpxmVoR3EeYMwRgTmBLEgbgdbW4a8Jz3bexhk3OW5szRW0BbQkDTkTqZZxONswp0xmqEX+qi7szEbhyG9rG24kV4hrAtkDkC4BNhfyM1Y2tQoA57K7sXNNBmdidAco1AsALmw0EoiMZ6GbgdkUaVWpXVflqoXrX1GcoLA5b2X3TYSPdr9IPlhXpp1dQp1Skku5W+a2T5tTm42Y+Uow+w9o4qzPTOU8a7H+42o9y2nTY5F/DcfNwSItVd2YH3iVmcUno+xFrmtQB5dWWHxt909PR/aOHF6WVgP1TsD9hyEI7rGHTJdiMQ7SX2O1ETj8B0vKnJiVyuN6kdVUA55HsrDvBHhN1sLawrBgz0s+dsqqWDdXfsEo4DXtv0tKYZWUGupzW2tl9T8mQTSJ7B4Dkp+sBoL7xqNb292Bt2thB1ZXraN7gXsyX1Njy7p3FWmrAq6hlOhBAII5EHSaDFdFxe9GoU+q12Hua+Ye+8mMnF5izTC+EobLVles2eE6W4V7XcoeTqR8RcfGbnD4hHGZHVxzUgjzEjKnTutRxkqJTc06jK1grqcpHaCsTfkDLmzcY42hQWlm1ID7hmUglw1rXy6kaaZRumiF8tyjJHG3T1bXKuRJ0RE1GEREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEjvp50TcO2LwyFr61aai7X4uoG881Gp3i5MkSJWUVJYZ0qtlVLdE+f3ppWSxF1NwdSNDoRcai+7zEu4TDU6Yy00VByAt/zJT6S9CaGJJqKTRrHUugFmP119rx0PfOE2l0Sx9C5KJVQe2jhfNXsfvmadUl7j26NbTN5ksS/e5Rsmmr1qav6pdQeRud3v3e+d5Rx1wSRUoEVdCw0cJ2SCB7LC9vPhIu/SyPWQg+I/wmau2sVUXKtSoRw7S3+0e18ZzSaK6qrxZKUZLBJNHFL26hbKmZjdiAq3txO71bmavafSXD5HRGeoSCualpbMCLioezpzW9pzWC6KY+tZig7mqVAxHhqxE6bZ3o+XQ4iszn6Kdkee8yVVJmRxph5559iOXq9IKpVKCO9gAoVCz1XsLa1LZmP9UCbPY3QrE1Resf0emTcgWNRud+AvzJ90kDZ2yaFD5mkqX3kDtHxY6n3zNneNCXU5S1mOKlj7mq2N0dw2G+apgNxc9pz+0d3gLCbWInZLBjlJyeWxERJIMbHYClWXLVpq4+sL28DvB7xOYx/QKkfmarp9VvlE+PaHnOwiVlBS6o6QtnDysj9thbSo/N1C4+rU/wAtXQe6VJS2qdCtT7WHHxCzvonN0ROv+S+8Y/L8HD4bYGMdgz5aRBJzO3XODzW5IU+Fp0Gw+jtHDXZRmqHe5368APZE3ES0a1E5ztlLjp7hEROhyEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQD//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhMSEhIVFRAXFRUWFhcVFhUXFRcWFhYYGBUVFRUZISggGR0lGxYVITEhJSorLi4uFx8zODMwNygtLisBCgoKDQ0OFQ8PFSsZFRkrNzctNysrNys3LSsrLS0tLSstLSstKystNzcrKy0rNysrKysrKy0rKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQECCAP/xABKEAABAwIDAwgDDAcIAgMAAAABAAIDBBEFEiEGBzETIkFRYXGRoTKBsxQzNEJyc3SCkqKxsgglNUNSYoMjJERTY8HC0RXwF7TS/8QAFQEBAQAAAAAAAAAAAAAAAAAAAAH/xAAXEQEBAQEAAAAAAAAAAAAAAAAAEQEh/9oADAMBAAIRAxEAPwC8UREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBFwSseSvhb6UjB9YX8EGSi1U20VK395fuB/E6LV1W3dGz449bm/gCSglKKAVG86DgwZj2Ne7/APKxxtxWSnLFSTk9kWX16h2iCx1wSq8M2Oy+jTlnzkrQPBrgfJRjaLEMSp5eRnewPLGvGTnDK4uA5zhe92kILqa4HUahcqG7rsUfNSvbI7M+OVw145XAOHmXD1KZICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCu96s00LqeWN1mPD43X15zbPjIB0Ghlv3DqUb2So5a+Z8T6p8eVmcZQOcLgG3AC1x0Hip1vTo+Uw97wNYnxyjsAdlefsOeq42HruRr6dxOjncm7ukGUfey+CCwod2tF+8fPKf5ngfkAPmq72tofcdZLBE1jYhkdFdrXvyPaCbveC7R/KAa8AFe6qrfFR5ZqecD0o3Rk9rHZmj77/BBX766pOgkdb5bgPsjRSDYWsEVfTv4ZnGN3aJAWj72XwUfRsrmEOaee0hzflNNx5gKq9KqtN8NJZ1LN85E7yez8JPFWLRVLZY2SN9F7WvHc4AjyKiO9ZrHUR5zeVZJG9rcwDjzsj7AnWzHuPqURoN0lZlqJouh8bXjvjdY+T/JWmqJ2ErxFXUzidC/kz/UBaPvFqvUFByiLGq8Qgi1lljZ8t7W/iUGSijdVt1hsf8AiGuPVG17/NoI81pqvelTNuI4JnnrdkY092pPkgnqKrxvSmLhakZk6Ryji77QbYeCkmEbwaGazXuML+BEnog9XKDmj12QSxF1Y8EAggg6gg3BHYV2QEREBERAREQEREBERARFi1mJQRC8s0cY63va0feKBitE2eGWF3oyRvjPc9pafxXnGKZ7WtcebK21x/DIw6j1OB8FelVt3hkf+Ja4/wCm18nm0EKj9q4HPqZH0ReYZZHyWdE1rmukcXOaL5iRcuN7DjayC5v/AJGw0NbeYl5a0ljI5XEEi5aSG2BHC11DN4O2tJWQtiYyRrmSB4fLybG+i5pGrr8HdXQq4OC1TvfJbdjn/wDG4/BfWLZVg1fL4D/sf7qqPxOEaGRt/wCUOd5gFvmvjJirB8WUjryho8b/AOy2MeEUbNS5zj2H/q6+uekYRaME9p1Nu8j8EGuftRWuYGNMvJgBrWmWQsAAsAGtyhY8bK+TVrMvaGNPiXZitvLjUYtyYAv/AAgE+sgX7Fhy487pzW6SejvuTZQfF+B1bwRJMWg6G7/+N/8AZTqbbXEQxrGTsja0BoEUTRYAWGsgPkodRvq6jOIY3SuY3M9kYc94aTYODRqRc2uAVscJ2QxWq05N8QLXOY+VpZG6zrFl7ZmO42zAX1N9UGRWY7VSX5Sqld2GV+X7LbBamSpjbqSLnsGvjcqRUm6fEn2MssMejvTcZCCOAIboQ7rDgR1KRR7n6S4JqJgMvOazLfPbiyQj0QegjUIitH4tH0anoHON+wcAvm7En5S5rOYNMwtlB6nOHo8DxPQVdh2AwhmV0lO0lrMrnSPLGvIbbO9gIZm6bgCxNwvrHjeDUQcI5KWO4aHCEB7nBgs3OWAl1rnUqCmqLCsSqWufDBI9rcpdzecA4XaQ1xu8EAkFoPet/s9u8xJ8gdNByDCQHvMjM+UgkOEYJDgNLtOU68FNqzejRN0jbNJ1Wa1jfvG/ktHWb1Zj71TRt7ZHOefAWVG4odmMTozelqo3s4lhzNa7viN2+sEFbjYvbqOuIjLQ2UszgsN2OaLXOurTrwPiq0rNvsSk05cMHVGxrfM3PmvturkazEYWiwuyVoGg+ITYD1IL2REQEREBERBqNodo6aiax07iM5LWBrS4uIFyAB2dai9XvSgHvdNM7tfkjb43J8lHN/VTeWji6AyZ59ZjaPwcq3p60t9LnD7w9fT60VaNXvTqj73BDH8pz5T93KtVVbcYnJpy+QH/AC42DTvIJCi+YvbeJ4v23I7iAQQsiiwGundG0NeGvJY2Rg5SBptcco5oLobW4ns0QZNVidVJ75USuB/imdl+yDZa55jadS256ra+JW4j3b4sS5pZGctiDJKA1/zbmG4Pyh5reSbnmF4tVZYjqRkvI026CDldrxNhp4olQZ+Ixt6+Pb09gHBdTiRdcMYCbE6AX043GrhpreytfBN2dHAbyPfUXYWOY9rRFe988bfSjIt0O6T1ra0WyeGUpbI2BjXsdnZJJI7O0nTRzjfLbo4cesoKIdirzwFgTZpvpc8Bppc20F9Vt6LZrE5ozLHA8hrix7CzLI1wsT/Zvs48eIuOKuKo2pwuBznGema9x5/JhrnutwzZAS71rT1u9Sgb6AnlOnBoaO3VxH4KCIYduvr5Wv5UiFwAyZ3Z2SB17tJaczCNNC08VsKTdA/97WMacugjjz5XX9HnEB7bdjTdc1m9t596pGjjrJIXHXsaB+K0lZvKxN/ovjiH+nGL+LrqifHddhZfmLJS3KQYw8iMk8Hgnngjo53itpNhmFQCMyR0zXRNysfMWGSzW5Rmc7Vxtpc3VIVu0FZN77UzOHVncB9kWC1wiJ1y69Z4+JSC9ptusJgAayZlm6BsERIA42FhYarS1u9mnHvVPLIdNXuaweVyqnEJ6bDvKODBxd4DoVgndZvUrHe9xQx94c8+JIHktFW7aYjLfNVPA6mWYNfkgFaB08YF7X1tqbevuWRQMnm94p3yX9Hko3SC+nEtFrJBxLLJIbvL3nrcXO8yggd02A7StsNlMTsHTCOnZxvUzRRN9bb5vJfEYBRNsZ8UiJ6W0sM1Tful5rR5pwa5xYPSkHcNV1fURi1g51+0efUvnjMcfKn3MZXQ5Rd1QGCRz9cxAZcBtstr68VqXSE8SqNnNiNhzWgHqOunepBujlc/GIHu4lko06hGbBQpTLdB+1qf5Mvs3KD0iiIoCIiAiIgpLf0A2rpXa3dBIDr0MkBFh9d3kq2a66snf/8ACaP5mb88arBqKzIJnMN2mx8iOojpUjw7aaSmmikiBZzmGSz3EPjuMzcugOma1762UVD1lVDryZODg2+vC3f60FoVm9uP91SvdxsZXgd2jbrR1e9Kvd6DYYh2NLjp2uP+yhYjbpzuJsLDiepbA0ELfTf4uAViVkVu2OIy+nVy26mOyD7llppZXvN3Oc89bnOcfEriaVolIjIcNMoGp6L9p1W1pcAxKb3qkntbi6Pk294fJlbb1pBq2xO6lzyXWQtwdmZG6VFXRwEjVj6hskwHZFCH66dBXMeF4czV9VUzHqp6bkvv1Dh45U4NKcg4kn1LiSoY0A2HTxPDvW/DqFvoUDnkah1TVSE37YoAxp7iSvszHZ2e8tpqbX/DUsLSe98ge71ghKRqKCgq5/eKaV/UY4nlvrda3BZjtmaxh/t5Ken6vdFTEy/1GFz/AFZV3rMQqJffqieQdT5ZC37F8o8Fhxwtb6LQ3uACVYyBhFC0nlK50jhxbTU0jvsyzGNhX3a7DmejSVE566mpEf3YG+WZYZXVKNkzG3MN4KaigI4OZTiSUf1Zi8+S+NbjtbL75WVDhwsJHRsPeyLK0+CwSV0cVB8uSbe9hfrtr4rklCupKo+U50WoC2s3BaoImuVMN0R/W1N3S+zcoepfulP62pf6vsnIPSiIigIiICIiCkd//wAKo/mZvzsVZBWZv/8AhVH8zL+dirMIrspPSYJRTtmknrvc07XtYxhjMofGGMdn5NnP4ucLg25qjC3jfTf3t/KEGXLh2FtAAnrpndccUMMfhNdw8F9xW0jARBhlOD/FVSzVV+u8ZLGjuGiwEQjbDaauAyxysgb/AA00MMLfENLvvLWVcsk1+Wkklv8A5sj5B6g4kD1LpdLoOGMA0AAHZouVxdEVyuEuuLoObrhEhaXnKwF7v4WAud4N1QcErqSt9Q7G4lNbLSyNHXJljHg8g+SkFHuorHe+zwxfJa+U+HMHmiK/cV0c5XLQ7qKJusss0p6swY3waM33lIcP2Nw6G2SkiuPjPbyjvtPuVR57paaWY2hiklN7f2Ub5PHKDZb+h3fYrLwpuTHXK9rB4Al3kvQLGACwAA6hoPBdlEeXdrcIloZ/c0pa6Tk2SEsJygPLgBcgEnmnoUfDVPN9n7Vd9Hg/GRQRAUs3VH9a0nfJ7J6ialW639q0fyn+yeg9LoiICIiAiIgpDf8A/CqP5iX87FWLVZv6QB/vVH8xL+dirEFFfRbwek/vb+Rq0V1ui4Bz7m2o4/Iag+y4WXQ4XUze8wSyDrbG4t+1a3mpBQbusTk9KNkI/wBWRt7dYEebwNkEUS6s2h3S9M9Ue6JgH3nk/gpDQ7uMMjsXROlPXK9xHraLNPghVIZhe3SeA6fBbWh2ar5ve6WYjrc3I37T7BX5Q4XTwC0MMcY/kY1v4BZiFUxQ7sMQfblHQxN7XOe8fVaMv3lIKPdTTt1nqZH9eQMjb55j5qxJn2aT1AnwC84s2tqHAGoc59xcuBJ8uPiibq2Y8CwGm9JsL3D/ADHOmP2SSPJZLts6GEZYInFo4BjGsZ52I8FVdNiUcnovF+rgV9nSIlTyq3hSH3uFre1zi7yFlp6ra2sf++LR1MAb58fNRnOueUPUqNv/AOYnvflpb9fKPv43W2w7bKqj9J4kb1PFz9oWN+8lQ41bL2vzuoAk+A1Xdsp/gsOt5y/d1d91BauG7cU77CQGN3X6TPEa+XrUlpqmOQZmPa4dbSCqHDz0ut2MH/J3/SkewD3e7YwHOtlkzAkm4DDoeAtex4cQFFRPfZ+1XfR4fxkUEup1vt/arvo8H4yKCIOSpTutP62o/lP9k9RVSndZ+1qP5cnsZEHplERAREQEREFHfpA/CqP5iX87FWAKs79IL4VR/MS/naquBQfW6vPc3QwvhqZHRMdIKnKHua0uDRBCbBxFwLkm3aqJBV/blfg1V9LP/wBeBFWFZcoiIIiICIiDrIy4IPAgjxVRbSbqZGXfRv5Rv+W+wf6jo13krfRB5XxDDZInFsjHRvHEOBafWCuaesmaDaUadEjSQe4jgvS+L4LT1Tcs8TXjoJ0cPkuGoVU7ZbqZWNdJRPEjNSY5DleB02cNHeA9aqREMLrXSMzSOLSfixtF+/O8kfdWbyjT8W/y3Od4t9DyWJhWGyksha28ty3KHNuCA4kkEg5RlN3cBpc6i81232do8Lw+Spe98tQQI4g5wazlX8CGttfKA51iT6KiowJnaNGg6GtFh6gFtsO2YrpvQp3hv8Ug5Md/PsSO4FbjcZhkronVk7i57uYy9gADZzrAacMmva5WugqvA9g55HvFRmhaw2uA12c/yG/C1tbdNrXvab4HspS0rs8Yc6Wxbne4k2PHmizejqW9RB5432/tV30eH8ZFA7qdb7j+tXfR4PxkUCug7XUq3V/taj+XJ7GRRK6lm6n9rUfypPYyKj02iIoCIiAiIgoz9IP4VR/MS/naqtBVo/pCfC6T5iT2jVVl1R3uvQG5T4NVfSz7CBefbr0FuT+C1X0s+wgUFiIiICIiAiIgIiICIiCr9paT/wAdXRVjGB0JdzhYGwcMr8pPBwBsPqjpKiG+PGP/ACGIU1DCc8MbWuOU+m+UB1h25MgHbIVcO28dP7jmdUODYmNLi49HQOGtySBp0kKqt2uEU0mKcpnaXMYXCxbaUsNrt6/SY8/Jb2oLjwDDW01PFALcxoBtwLjq4jvJK2CIgIiIIFvA3aQ4i/l2Suhqg0NvbPG8N9EPZoRxOrSOOoKqPHd2WLUrTI6FszBe5p3GQgdZYWh1u4HgvTKIPGwP/v8A2pZupP63ovlyewkV2bb7vKTEGl2VsNXxE7GDMei0o05Qd5uOgqvtkN3mI0WLUr5I2up2OkJmjcCyxhkAu02c03I4i2vEqi8kRFAREQEREFE/pCfC6T5iT2gVWK0v0hfhdJ8w/wBoFVYKo73XoPcl8FqvpZ9hCvPV16E3H/BKn6W72MKaLGREUBERAREQEREBEXV7gASTYAXJPAAcSgqH9IHHiGU+HxnnSuEsg/kabRg9hfc/01EZd381LTUlcA8ufmfIGkAQNOsJDdHattfqK6YVmxvHHym5hdJZt76QRi31bxtP1pbq/a2qpZHOonSxiZ0ebkszeUDeh4ZxsLeSowtgXPNBAXymVxa45i4uNszrMc46ktHNPaFIVW2xVa6hrJMPlNo5HExX4CTpaL9Dhw7h0uVkqAiIgIiICIiAiIgIiICIiCh/0hvhlJ9Hf7QKq16j272HpsTjAfeOoYCIpmi5bf4rm/HZfiPAhec9qNmavD5eRqWWJvke25ikA6WO/Fp1HUrg1C9Cbiz/AHOo+lu9jCvPYXoLcOf7lUfS3exhTRZSIigIiICIiAiLW7Rw1D6adlK8MqXRuETjwa4jQ31t320QbJV/vs2h9yYa9jTaWoPIt6wwi8rvsXb3vCjOyO3VVhkgocabM1rj/ZTyc8tBNrSPBOdt/jAm19dOEZ3l4ocUxhlPCRJDDlijykFrpHEZyCOt5YzuYgm24TZ7kqd9S4c5/Mb3A3kI+tZv9JbPbjdp7rn9201S6nrQWuBIuzOwANcCOcw2DQbXGnBTbBsObTQRQM9GNgbfrI4uPaTc+tZqDzztPjOICSKHEYOSrmax1DLBk4YQWkW5uYHW47LgWCubYfaNtfSsmBHKjmTAfFlaBm06AbhwHU5bTFcLgqYzFURtkiPFrhfXoIPFpHQRqFV2JbB4lhkr6vBpi9jtZKaXnZgO/R+nc7tJJVRbqKvNmN61NOWw1UUlLVXs9rml0YINtXDVv1gLX4qw1FEREBERAREQEREBERAWBjeD09XE6CojEkTuIPEHoc0jVrh0EarPRB5r3h7upsNPKxl0tETYPtz4z0NmtpbqeNNNbG17J3CH+4z/AEt/solZTmgggi4OhB4EdRWHheE09M1zaeJkTXvL3BjQ0F5ABdYaXsB4IM1ERAREQEREBERBrcfwGmrYjDUxNkYeF/SaeGZjuLT2qk8S2Nq8Aq2V9PH7ro4ySQdHsBaW8+3CwcSH2IvxA0Cv5cFoPFBH9j9saPEo89O/nttykTtJYz/M3pH8wuO1SFVXtvu45J5xDC88VSy5McRIDh8Z0YHT/ILg20F9DI92GKVtRTPNWS4tflZI5mR0gyguJAABsTa4HWOIKCYoiII/i+x1FUztqJIyJRlzFpy8oG+i2QfGGg142Fr20UgREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQHEhUSEBAVExUVFRgYFxYYEhUSGBkVGxgWFxoXGiIfHCgiGh4lHRoWITEhJSkrMDAuFyAzODMuNygtLy0BCgoKDg0ODw8QFS0ZFRkuKy03LS0tLTctKy0rLSsrKystKystKy03Ny0tNy0rLTcrKy0tLSsrNy0rLS0rKy4rK//AABEIAKgBKwMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQEDCAL/xABDEAABAwIEAwYDAwkFCQAAAAABAAIDBBEFEiExBgdBEyJRYYGRFHGhIzKxMzRCUmJygqLBFXSStPAIFyVDU2SywtH/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABURAQEAAAAAAAAAAAAAAAAAAAAR/9oADAMBAAIRAxEAPwC8UREBERAREQEREBERAREQEREBY1bXx0DHSSyNYxgu5xNgAOqpnijm7WQTSwRU0cBje5h7TNK/QkA27oFxY7HcalRaXmNXVbSyoFPVMLg8NnpY5WtcBYFoGUC2u990Ho6nr46pofG4PadnNcHNPTQg2KyGSB+y868P8d4tPKGUuWbYCAUzOzaOgAYGlg/iCvvAjNJCx1XEyKYjvsY8yNb5XsOlvH5ndBsUXBOXdcCQHqPcIPpcE2UDxjmzh9BcRyPnI/6UZt6OdlaR5glRqs5p02NwSxSuqKMuOUOjayd7oyBm1IswnUeQ1B10C3jO0dfoUZMH7FVVwRzAoRaldJUs73cmq5RKZCejnAkR+Q0btrc2Vn00Oub2RGUiIiiIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDWYtw/S4z+c00UpAsHOYC4DwB3HutPJwDh1M1zhQx6NJ1zOGgvsSQpWsPGHZKeY+ETz/KUGJwlSspaOnDGNZeGInK0Nu4saSTbck9Vt1h4Ozs6eFvhEwezQsxBWXPOTtoaSnzAdpUZje9srGFpv5AyNKreDCzSRMpy5rpHyhnaC+rpHNYAOtgT1v5W62BzSDq7EKaNrc3YwPlf3stmPka1xvqR9wagE+AK0GD0bpsSpYZGkFtQHOBsSDEDJrbwLBqqNViHKrEaZxDYGzC+jmSssR00cWkey7MP5S4hVHvxRwDxkladPkzN/RehUUFU8CcsKUZpaomofHNJHkIyxXjeWZrbuva9ibeStVoyiwFgFpuFxlFQP+7n+r839VukBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARRHGuYFNhEr4HtlL2GzgIx4Ai13C4sd1rJ+ZcNTHIIn9jLl+zM7CIy7zMfaEW8wgsFR3jnHIsHpZBITnljkZG0C5Li0i/kBcXK1fC3GraqJjKqqpX1GuYxl7I3anLlztbra1x4rI4zwqlxuEy1ZfGKZj5M7CbtjsC/QA5hZoNrX00QRaPmlIWNEVKxtmgd97n7C3QNX1BzSnYftKeJw8Guew+5zfgvuXlRkPcq5APDsgT75120fKqMflXyzeT5BG32jAd/Mg6eN8TosToGYoILyF7YC7O5jmgPdnbcHK4jv5c2lz5rD5b1FBTXqqmra2oZI8MbJO1pEb2AjudSA4tuL3y+iwuPeX9VES6nPbQ2a1lPECwRsaNXdnms7vHdovr5qvTgNVTu71JPcHpDIT9Ag9IN4yoXG3xbP5gPe1luKSrZWtD4pGyNOzmuDh7hee8NwKtr7BtHIwfrS2hA+YdZ30UvwXFo+WpdFVOlqJZwJHCJoEUdu60AvcMzjrc72A0Glwn/DDrurB+rWPHvHC7/wBltpKtkW7x8tz9FTVTzQFM6UwUZHbSdo/POdX5WMvYN07rGi1+i+MY4yoayaGYzYhZmnYxCOFgvlzF5zZnbA2aelgUFytrmO2J/wAJXexwfqDdamhmZXsbJC4PY8BzXN2IPVbSCPswiOxERFEREBERAREQEREBERAREQEREBERAREQEREBERBp8f4ZpuIAPiYQ5wFmvF2vA8ARrbyOigHE3K2nw+nnqI6mZoiikkyuyPByMLrXsD0VrqE8x+K6SgpqqkkmAmfTuaI8rrntWlg1tl8euyDSUnJ6IgGStmIsDZrI2emocpJinDUeE4XVU1M2R2anlaAXPleS5hbYeH7rQB5Ld4fj1LiAHY1UMlxoGyscfYG62SAiIgqjj+vlkxqjiglfGWx5SWEg/avayx8Rd8TrG47itF9K1+4+pVU4P/xjiKaTcRG3owPbp6iB3qPFW4g6I6RkWoYPx/FQTmXwFNxPIyoppmh7YxGY5C5rCA5zg5pANnd49NbDUWVhIg89/wC6zEnm3Yxj9rtmW/G/0WXNypmw6NstXURgGaCMsizPNpZo4r5nAAEB17ZTsr5Uf44/N4/75Rf5uBBmcOYDDw3CIKcODASe84uJcdyfC/gLBbREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQFGON+F4ceja51M2WVskWU7HL2jA++ozNDC42Nxp4qTqF8U4s91YyjdUmkhdD2hkaQx8zi4t7Jj3C0drAkjvai1kHGK8vMJteWnjhHiJXQj2zZfoo47AsLw8kU2P/DEfoiuhAB+TS131Uuo8Ao6Kz+xY99vyr2/ESnzL3Zna/NbkRNc3TQDYgZbeY8EogtD8SPzXH4am/dY3NE67z93MT2ht4keOxWRXY1jeDNc+Sjp6iNjXOc9jsrmgNJvbPdw06NC2fENdQUzHCtlgeP1ZGxyu9GhpcfQXUEmxkUuFYtNTGX4VxjhpxI9zpAXhscliSSGAPBaL6C6CP8G8ds4ZqnTzwum7cua57NDGB2YccpHe/JgkEi1j4q4aDmHQVov25jFr3kikYwD9+2T+Zabkbh3wmGB7h3ppXvN99LR/i13upbiPDVJiBzSUkLn20eY2h4/iFnD0KBLxNSRRiX4uEsOxbI2S/wAspJPotRNzEo4/umR/m2Mj/wArKrKrAazDSRNRyuIOro2OnafMFoO/nY+S6osOq6rSKgqSfOIxD3kyhBcOGccUeIODBIWOcbAPYW3J2F9R7lfXHP5vF/faH/OQKu4uA5IonT173RRMGZ8UIM0zgNcgLQbX2u25/EZmPczKbGIYo4YZhK2enlcx4DMohmjme0m51s223XyKC2kXxBKJ2tcNnAEdNCLr7QEREBERAREQEREBERAREQEREBERAREQEREBERAREQFFOYXCZ4qhY2NzWSxvu1zs1spFnDS/g07foqVog8+4ty1xTDyexeXt6GOVzfpe60VNwPi+I3zRVNgSLSOkZt1GcjTzXp9FaKBouUFe6MlxiiIFw0uzuJ8NO77uXRzD4lpailGE0MEsYgqB2hLW2fkzNcTZxdmLjfX9VehVS3NmljrsTo6eONjXSvYHua0Ncbkh2YjU6SRnXwKgsLlxWQVGH07KeaOQshZ2gY4EskcMzg4btOYu0NipOtZh3D9Nhb+0p6eOJ5YGEsaGXYLWDraOtYanVbNB8PiD9wvhtKxmzR+K7kQNlHpuCKGec1LqVpmMjZTJmffO0tdfewvlFxsRcHdSFEBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQFw52Vcrqnj7UEFBFpOZeGRPMZrG3BsXZJCy+33suX1uoJh0zeJOJhIxwdHC17wQbg2a5jSPEG0brrp4j5Uw4MyWpdVyCKNt8oiBcdbNaSDbUkC+VV7RCJ0hfU9owOLcpa1rnNLQ1rTY76A7EHqg9Y3RecsO4lmww2hxCqDQdO654t5tldKPaykEPNupoh9oGTjMBc0z4XW8yJC2/oEF2oq04f5y0eIHLUsfSu6E3lYfVou31AGu6n2GYvBizc9NPHM3xY9r/ex0QZqLi65QEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBajHqhzcrGOLSdXEGxt0Hv+HmtrLIIgXHYC5UOx7FRQwy1EhtZrneNgB0+QH0QQuo5j1NJijaaJ7X07HxsmztzHvOaHFrhYggE23FxqFcHbhUXy44SfxG74qpZliL3Py3N5HFxIH7o0BPlbxV5xQeKCPcyqhlPhlSXkgFgboQD3nNbp7qG8rOCKbEKFtRUwtldI7MzN3sgabd3+K/su//AGhcQ+GoIoQbGWbX91rTf6uapxwPQ/2bh9LERYtgZcftOaHO+pKDuGDsZtGwfJjR/RYOLcL02KZDPA17o3BzDqMpBB6EaaC4OhUkXyW3QQvFOB6TEge0ooCXG5cGdk++18zLG+gULxHlUKV3aUdTNTvG2b7QDya9tntHqVc/Zr4dFdBSrMex3hb77G1sY3/5+nkRllb83ZlvcC52UdWclXHJSv2JIMsd9jqBmHq1WJNQNk3aPwUZ4i4GpsaB7SIOdbRxHe/xDvfVBI8Kx2nxgXpqiKYDfJI19vnY6eq2AddeW8Z4XrOHKoiKnna1rz2T2MkddnSz49jbpoVenLaWqfRM+N7QyZnWMgs8sv3c19fEa62AQTJFwFygIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCF8Y8ZU2GyilklyuADn2a5wF9WtNgddj6jxWkmhZxwWwRSZoGua6YtuMwvcR36EkC/lfxC3fEfLSlx2V8znzRSPN3Fj2kE2A2c020A2st7wxw/Hw3A2CIl1rkvdbM5x3JsLIjOoaNtG1rWtDQ0AAAWAA2AWSi6K2Y07HOaLlrSQNrkAkBFUnztf/AG1itDQjXRgNj1mkykeVmtafUK8hZug6LyZjmOT4hVfFyPDZszX5xYAOba2UXNgMrbb7dV6F4QxyXFaOGWYfaOZ3iRluQSM1ul7X9UEuutTjONtoAQ2zn+HQfP8A+fgtdXYjIe624v8A69FCONOLYeFgAbTVLh3Ib6N/bktsPLc/LVEWBQ8VRSyRQTfYyzAmMO+7IW2uGHx1BsbE9L2K368mV002JympqZ3OlBDgWnJlIuW5SNRl6Wtbfckr1ZRz/EMa8fpNB9xdFd64LbrlEHWYgUbHlXYiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIIPxczCeHXCeqpITM8ktDYGukcRa7ugG41NluMOrIcQhbPA9ronDQt0A/ZI3DgdLHVY/HXB7OKohqGSsvkcdRru13kdNennsdJwVy5ODtvUzlznEOdFG9wizZS032z6EjUAbaaBBrOKOKZqp5psJgdPNch0rW5mRHbU/dL/I6Drc6LSYJydnrXmaunDXON3EXmkJ31J7rT595XVS0bKRobGxrWjYAABd6CJ4Jy9osI1EIkf+vL9ofmAe630AUra3LoFyiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiD//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQHBhUSBxIWFRMWGRUbFRcWFRodFhseHBkZHxoXGBoYHSggHx0nJxUXJTEhJSkrLi8uFys1ODUtOCgtLi4BCgoKDg0OGBAQGy0hHSYtLi4rLS0rLS0tLTctLS0vLS0vListLy0tLS0wKystKy0tLysvLS8tLS0tLTUtKy0rLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcEBQgDAgH/xABAEAACAQIEAwQHBAkDBQEAAAAAAQIDEQQFEiEGMUEHE1FhFCIyQnGBkVJiocEVIzNygpKx0eFDorImk9Lw8ST/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAAmEQEAAgICAQMEAwEAAAAAAAAAAQIDERIxIRNBUTJhscEicfEE/9oADAMBAAIRAxEAPwC8QAAAAAAAAAAAAAAAADTcUYP0zLmlW7qyk9S57Lput/7kWnUeEwojMu0vM8+jVhTxNPDU4OzlTShJpuSXryk5L2fd3MPBdpuYZJTcsPjvStUpao1qd4x2VnFtqVueysvIiuY4mrjcPRhjIqCp09npabTfOV3v7K38zIyJVcRUpYSnTTpYmvSUZSg2/wBpFeq+Xu7/ADGzTqrhfF1cfw5h6uZJKrUpU5zSVknKKb26c+RtDXYPAxoV13dTVpVrN3ktrbv/AAbERMz2SAAlAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEQ7Te6nwxXWJnaapVO7imk5S0vRHdPm0lZbkvIB21Zc8RwNXq4aDlVpqm01JpxjGcXKVk97JP5b9Cto3GkxOnPeeSq+nwhm91UjShHdLb2muXPd8yVdm2Dr4jjDA0szusPHvasL2StGm91KO976eb2NPo9Jq1ZYiV3akm223bVO6b/AHab+hMOwbJq2ZZ7LFY+Mp4anSnThKbvHW3D1YJ+CT3XLYnXg2vHK8PSpzlLByv0e+y/A2B4YbCxwsWqCtfzf5nuRSNRotO5AAWQAAAAAAAAAAAAAAAAAAAAAAAAAAAAABr+IIqWQYhVfZdGre+6tole6NgafjCfd8K4p3t+pq/jFr8wOfaeU4eph9Cxzu0k13E9LbhKCfK/v35nQnCeUxyLhrD4aglanTim0rXla85fFycn8znHA0l38bTj7VNe90lH7vmdRU1amvgitZXtEQ+gAWUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACO9octPBWKu7fq2r/ABaX5kiIn2pyS4DxKnykoJ286kSJ6THanaHDNfA1YVMXTnCHeQ3cdt5wt162OjY8jn2HE9bOalKjjZtwVWk0lGK5NWu0rvmdBLkVr2td+gAuoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEO7V5qPB0lU5SqUYv5zXg0TEgvbFOUeFIqi7OVekuaX2n1+BE9JjtDcTwxQyTE4eeHrxqynXpxSivP2nab+z+JdhznwvCp+mqHeP/Uo+8vtO/XyOjCK9ytf2AAWUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA9sGLeDyrDTg2nDEQmreMIy2e6233J8V/2tVacFhFj1ek6s+8W19Kjvpv13InpNe0Ry/iqrxDm2Fp4rSlGvTl6kGru7XrXm9i7imcu9CeeYVZBGWrvY63Jx2Sb2S8239C5iI7la3UAALKAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABVfblLVHCxUXL9u9r+EPAtQq7tZzKWW57hqmGjqlGFTZq8Xqdt1bfkn8iJ6Wr2iHA1L/qPDWhJXqLnfo7+HmdAFLcOZ5UznifCxxNKMFGpdaIaU7wTvLbpd/UukrX3Tf2AAXUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1mfZ7SyHCa8c+fsxXtSfgl+fImI30iZiI3LZlS9quHpY/i2jTzGt3MFQvrtdX7yVotc9/E/M546q5lUj3NOEIwkpRveUrrlflF9Ha3QimfZtDNs07ziPXOWhKLp6Y2SlyfqtWu0WvitWNyrjzVtbUNllWGw+Q57Qq4HE9+oapzajZRUYLnfdtpMvOMlKN4u6fJo56wXotSu1lsaifd1tXeSvt3Ltp0peHUuTs9qutwbh3N3tFx+UZSil8lFL5GFZ/lpvaP47SIAGjMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAG7LcpLMMTPiziKc5TUYK+lyvphTi7LZdXe/wAWXXUjrg14po5/wleWT49qcVJwcoTi7pOzs1dbrdc/I1xxbjbh9WvDDNNd1i3078sjN8seWSi1ONSE1eE48n4pp8mrr6mJgo16mJl+jadKp6sdSqKLtu7WU15dDLq4qXEWY0qOGhGnFXjTgm7K+7bfNt2/A+cXwhUr17wr0Vslv3vS+/q/vLoMt7enWL/UYaV9S00+n/Gbg6VZ5rCOaUqVJShXS7tRje9NpuWlbpXT+ZM+yDM1X4elha/q1sNUqRnB+0lKTknbwu5L+EjfCeQyyrPI1cVVpShaasnVlfUpJXUlZr1lfc3fEWQQyqvDGZdqhP2dSbjNK20ZNP1o7WtK/JHPSvK8a7dGS/Cs76TfN81pZPhe8x0rK6Ssrtt9EjB4f4oo57jK1LDRnCpR06ozS3jJXjOLi2nF/Uq3Oc0q5pXTx03LTtHkkvglsSHs1p95xXiJx5Qw9CEvjJJr52ib5cfpxX5lhhzepNviIWaADNsAAAAAAAAAAAAAAAAAAAAAAAAAAAVB2n5R6BnnfU16ldX+E42Uvr6r+LZb5Au1+pGOS0Yy9p1bx8bKEtX/ACj9TTFOrQyzRE0lXPC9eOG4ipSxMtME5Xk3a3qytv03aJdDE05rapT/AO5D+/kV436xm0uS+C/ov7m+TDztvbnxZuFdaWHhYRrYyKo6W9S9lxb578vK/wBCW53hfTchnGN29F1db3W6+bt+JXfA2/EtL+P/AIVC1zjzV9K8al147+tSdx9lF15xpap1/YgnKXwXReb2S82Wn2dZPLK+H1PGq1fEN1qvk5ezD+GNlbxuV5xVl8cvzHuq/wCyeLw6lfl3UnKW/lsv5S7DXNk53+0ftn/z4+FPvP6AAZtgAAAAAAAAAAAAAAAAAAAAAAAAAAYma5jTyrAyrY2WmEVv4vwSXVvwKL4oz6fEGZOrX2itqcOkY+HxfV/4Nt2jcRvOM3dLDv8AU0W0vCUuUp/kvh5kPcjrw49Rue3Fmycp1HTNyjL/ANJ43u1LT6spOTV7KKu9vkb+nw5a1qvh7nlH733TUcN4mGFx0pYmWlOnUSd7bu1lf6klhmcHP9pD5yj/AOXmjPLkvFvHTTDjpam57Z/C2WegZ3TnKalbUrJO7vGa+HUsaLvErnKcwpvMIOpVhFJ3vrirbPxZPsNj6WJS9Hqwl+7OL/ozjy2ta25deOtaRqEN7UssjXy/vajWmUe7mmm3e+qnJW6p6vrblcz+z3iaWOpeh5w16VSimpX2rU/dqxfV8k/P5pbbiTBwrcN1YVNoqDabfJx3ju/NIqKnKblB4N6cRRevDS8/epPxjNXVvH4s0pSbUm0dx+GdskVyRSep/K/AajhTPYcR5HTxGH21K04/ZmtpR+vLyaZtyYna0+AAAAAAAAAAAAAAAAAAAAAAAAA1HFuY/orhuvVg7SUGo/vS9WP4yRtyG9rE3HhFpdalJP63/JFqxuYhW86rMqXlKx83Pictz8TO55zLwlZUK16kFNWd0/8AKf8A6zNqYy0rwpRv8V4rf2fNP/6YWEqwgpekRb5aWr+d07P4fToZHptCXt0qy+E4vw8Y+SMb635iW+PfHxMPWhjbVL91HyTey8Pd8rczOpVlWqXqRjv0S2+CXga2nXoyqrT30V116bf7Y3ue9bFxg4uhF2dlu1flu7/J/IvS9KRM+Y/tllx3vqu4n403sqn6i2qWn7Op6fjpvY1laDVJVaPsqVlJPk1v8metWpCrQ/USbjKO91Zp7qS+qe5gQjKlTanO622tZbcv6ludrcZxxHGe2VaVrzjLM8o6TLsyx/onFVfDraniaccRTXRTT01Uvi7/ACgi0yj+Fqrp8YZdKP28TTfmnTTt9Ztl4HBx42mvxL1otyrW3zAAAAAAAAAAAAAAAAAAAAAAAAARjtJwjxnB1dQ5wUZ/KEk5fgpEnPirTVak41VeLTTT6p80TE6naJjcacwVD4UjccVZJLIM5nQq3snem/tQfsv8n5pmjezO6J35edrXiWRCZ6xmYanY+lUsTtGmapntdVI2nujXKqetPE91UT+PS/8AW4vfjWZ1srTlaI3r7tlGuqFHZcuhk4icHSi6Mnqd1OLW8X5Nc1v8jBxeKWOqatEYXS1RirRv1aXS580YWsqS5lY52mtonUa8wmYpWLVmN234lJ+CMP6Vxngkv9NYms/hojTT/mLtK77KMklRnWxmKVnO1GiuqhBvXLy1Tb2+4WIcUzu0z8vRrHGsV+IAAQkAAAAAAAAAAAAAAAAAAAAAAABH+MeF6fE2X6aj01YXdKpbk+qfjF2V0UVnmSVslxjpZlBwl0fuyXjCXVfj42OlTFzDL6WZ4Z08wpxqQfSSuvivB+aNKZJr49mWTFFvPu5hcLH5pLpzLspw2Ik3l9WpR+67Tgv5vW/3EfxvZRXoU3LD16c0k3bRNSduiUdV2bxlpLmnDePZXCR6Q5k1wHZpjMZh4z/Vwv7tRzjNeTWh/g2bfB9k9Vy//ZiYRX3IOT+srf0LerSPdHpXn2V7TRN+CuDKuZy73EXpU9tM2lqfi4Rflyk9t+Uuk8yPgXCZO1JQ72a9+rZ/SPsr6EmMcublGo6bYsHGeU9vHB4WOCwkKWGWmEIqMV4JKyR7AGDpAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIHEhUTExMWERUXFh4YFxUVFxcXFhUXFRcWFxgVHRgaHSoiGSAlHR0YITEjJSkrLjovHR8zODMtNygtLisBCgoKDg0OFhAQGTclIB0rLystMysrKy8rKysrNy0tNy8tNzctLSstMzUrKy0xLSsuNzcvLy03KysyMjAxKystLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcCAQj/xABCEAABAwIEAwUFBgQFAgcAAAABAAIDBBEFEiExBkFhEyIyUXEHQmKBkRRScqGx0SOCwfAVQ1OS8RYzF2OissLS4f/EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAnEQEBAAECBAUFAQAAAAAAAAAAARECIQMxcYESIlGRoUFhscHRE//aAAwDAQACEQMRAD8A7iiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIi8veGbkBB6RaNZikVGMz3Bo+84hrfqVXP+v6Zs/Y9oyQl2Vobmabk5Q0F3ceSed2hBcUVDrPavQUU74XiUZHZXPytytcPELZs2huNAdir0xweARqCLj0KD0iIgIiICIiAiIgIiICIiAiIgIiICIiAi+E2UHX8YUGHvySVUQfe2XOCR628PzQTqLlnE/teGGyOihpi5wJAfK7K1wHvMABLx8wqZVe1CvrMwe5uRwILYwYy0Hm14Jc09dUWyy4rvGJ4xT4U3NPNHEPjcG39L7qHq+O6Cna132mJ2YXaGO7R7uWjGXdv0X5yfG6tfdjnSvdykP8U/zHR/5HovkNFNLe0TxbcuaWNb1JfYAK4R2vEvacyF1mwyW5mQiG4+Eak+hsqlintBlxabJFOymgcbB7gc7AW5XOflJJ110y79LmPpcdpaGikikLBVSDs+1p4u1LYyALvle4Z9MwOR2x0FxrB4bwlLiMrJad1PPGx7HOayRxcA11yHRvYHtuNNRbqg0sSx3spCH3nDXHKXknMNs292lwAuWkLDjlNW0z3ONPJAHnM1ob/DAOoa12oIAtzv5qc9olPR0lVlipgyzAZQDo17rnJlDi1pDcu3n0WtiNZX8T07HNikmjgcW5o2hzg5wZu1veNgBY25m6I1+I8AioWRSisbMJtC0NBexwaHPzd7kSBsD3hopjiT2jz1EcMcEssABJe1sz+8dA3K7R7R4u7e22i1OEeDn8RiVs75aZ7cvZZ2HvF2fPdrwC63d2I3N9wr7wnwS3AmyxyujrGyEZgYrhuQO0IJcB4juR+tgkvZHxdNiFPJ9qfJLllytkyl5AyNOVxHeOpvcgjr5dKp6hlSMzHNe3zaQR9Qua1+LUfCEJyxCFpPhp4x4zyJa0tudNVqYBxtHib3OlYaR1wI33AeWge85um/uuuEV1lFAUeNuYAXjtmf6kQu4DzdGPF6svr7oU1TVLKtuZjg9vm03FxuOhHkoMqIiAiIgIiICIsNXVR0TS+R7Y2jdz3BrRfqdEGZFgdVsbzv6aqPxHER2bhcx3aRn95txa46jdBlquIKOjf2clVBG/bI+VjXfQm63ftDCAcwIIuCDe48xbdfkviqg/wOcxPJLj3szT3XhxPfGl9Te4OxuNV2j2Y4ZLgNMWTO1cQ5sIN+yFje5+84nUDQWHVUT+P+0ugwVzmF7ppGmxZG25BHIuNmg9LqjYl7Z55HfwKeONt9e0c57nDmO7YNP+5S3Fns/hxwuli/gzHUkeFx6hctruFq6il7I073u5Fgu1w8wf+VnxSc9nacDVr34fm6c52/fJNcS8QTcVnNHPI0kC9I9+VtwAP4bhZsl/JwvcnloqbKewJa4dmRu1wykfI8uqkXYayn/79Q1p/wBOACV9xyzeAehsVMf9WQtELDRxzMiFs8znGZ3xZho0+od5Ky5Z18PwTezPpLn8bfOUJhpnqhkjjMzNy17bxD4rutl9WlS54fojIxn+IMZmaC5rQXhj7DNGJXDIRe+rnA/otTE2vxhznwyGVly4U5sx8Q3s2PwuA82/qoQm176W3B0I9QdlnEtdLq4nD0zOLPpnFnb06e8TDqz/AASQdnT9hK3Vskp7WQH7zHHuW9AR1WKrx6euaWTPM7C7Nlk1s7UZmkWLTYkaea84S2orv4cURqWH3C3NH6gnb1aV0On9krZS1xmexpAJZuWm2rQ4i9r873/RWeHlGNV4kxr1dttu05Y+HNoKH7e4Nhu55vaJ3idlBccrgLOsAdCG7blTOBcFYhiDg5kboLHSR5LSOoy6/mF2Th/g+k4e1jYM50zuN3u+Z3W/ieMRYawue9kYG5ectgOdv3I9UxfU/wBNF3unfrie38sn2Vd/s7hxKIfanPfUEWkqIndm+Sx7uYWyuIFhcgnQXK2uGOHoOFWFsUj3xOcSTIW3Dhpr4fSwby5rNhuPt4pbJ9kkjdlNgZDoHC9hlAuRfmfUEqKhfPTNezGKUTMcTeaPNLAG9W+KP1cL9VXK3NbUXFVJXz/Z2TRySkEOAIEenmdTf4Qb9Oa2nUtSTI2qj7WF2jHUsjw5rbe8Blfm6tuoT/w6oapmehlEYOoGYvb/ALr5h8y70WOOTFOFPG0zxDn4wB+IatHrb0VRbMLgFOzJTzCWNunZTakfDmtcfzAlaWJ8NUlbrJA6nd9+KwH5Xb9dVjw7i2kxe3aARv2u7QjoJBYj52W7jWLf4FGJQ4vZcA3I0zENFjsdS0WPnugrb+F6vCLvpKkSNGuUnI76G7Xeui1cP46yOvMx0Um3bQ2Djb7zHd2Qet7clhxni10kuemcQ0ts5rgLXN9mn1sqnJJnJ11JuQ4czr5flZB27BuM4qsd9zXj/UiBsOr4jd8fr3m6XJCs8Ezahocxwe1wuHNILSDzBGhX5jJMJDhdhGzmnS/qOfoVYuFuIaymmaGThgPecXtzNe2xLnOZpn0abvuDp4uRK78i18PlfPFG6RoY9zGl7RqGuLQXN+RuFsKAiIgKhe2dmehZ0qGn/wBEg/qr6qT7Xm5sPPSVh/Mj+qDmHC/GM+AWYf4sP+m46t/A7l6bLqmGYrTcSxExuzD3mnR7D5FvL12XBH+Jo6H+i2KSsfh8gkieY3t2c06jofMdCqiy8V+zdkDzPNivYtzdwzNu5upcGNPaC/mAAFMcN8X0tBGKds7qqexyzVDTE2aTXJHc3LbmwzO+pOiwwY7R8ZRimxBohlv3Jm6NL7WzA/5buhu0876BQnEfA1TgErRSUxqIzYMmbaWbNbUvzC0OtyC0AWtrfRRqYZ8T40xcP70ZpMjrEOYyOK/kXy37S4BNmE3GoVywDj6lxXJDUObHM4AE2cIXvOmVpfYjW1swHQlc4pcQAjdFiEn2uPVzIopO0mhlO8gqCcredw1zwb6jz9twu4bNhUBqo9GukIElXHNuQ4O7se4s6MW0vmRrHLOy08W+y4SXkoyGHfsj4D+G3g+WnRcwraCahf2ckT2v5Nykl1ty3LfMOoXX+CW4hgpea+oYIywvFM55nqb3vmAbdx591ubXkOdgxfEHSi8FP2+YB0UoDHxPA8Tb5gWOAva4IuPW1YscawTgutxOz8nYMHe7SQ2y21zDW2nnfTyXTncH0DGxfaR9omY1oJF3PkJvlLgOZINibXIO6kabB3VbJDVyudoWZQ9zGEEAEnu2B5d3Qg2c29wo3H+N6Dh1uVz3SSgbZ3vfy0FzdoJA07gOilkvNvRxNei+W4WPByyMWjgETAL20DwORLD94agi46722JMWja5rAcz3A2jFi+/qCRpre1x1VD4U9okHE0rmVBdTtJAjBOVsnq4bHp+Z2G5iXs3dTzGsw6pfFMd2TPdIx3TObuA/EHfJIxbbc154j4oqsFmY2akmipr96pFpbA2uLtLsnzI6NKYxwPh/HLBNDUyB3IiQyMvbnG4909Glvotyj43kw1wgxSndTOPdEts0Eno8XGvlc9bLbl4RpK0/aKKU0cjtRJTkdm/fxR+Bwv5WVRzit4Jr+FXdpE02btLT3It1aBnb1uCOqnuHfadJBZlU3OP9Rlr/AE2PysrazE67BNKqHt4x/n0wLrDzfD429S24XmuwzDuKmGTK1xI/7kJAcT1OxI8nAoM1Gyhxu8tO/spDu+E5HfzstY/zNK84jjT+HcvbOErHGwewWcDYkZmbHQHVp5bBceqWvwWokjY8sdG8tBBO24NxqLtIPzW3inElTibGxzkPaDpoBmI2u4bkIJ7jnEKaukZJAWuJBzljbWva1yBvfN+V+Srjql7xYPJaDcNJNgfMDa/yWo0/dPyO/wBdv0QuHMZT9Py5oMjnjmMp6af/AIfkvjnnQaP1sBz16cvkUhY6U2BGU+8QSNNLW949L+pCsOAcOOq9tGE6vI1OtwOtvIafPVBGYfhTqt2UNL8wtYG7QDvfz+enrurvgvDMcE0bXWdLK4Zz/wCUNZLj3szR2d/iC+xSNpCYKNgfJs+Q6tYfiI8TvhG3O3O1cL8PGjJke4vkd4nu8R/YdBoirei+NFl9UBERAVa44o/8Upnwm+tiCORabj9FZVimhEosUH5kxSjfRu8JcWk5m7Gx5jzUUJMxzA3BNi4eo7pB8JGosfNd74q4QZXAuAs7kRuuRY9w++hedMjvO12P6OHP9VRDNde3mRt/RW7hTjibBLRyXng2yE99g+AncfCdPRUotIOUizhrkOptscp94WJ0W4I7AedkR1PDeCMG4gd9piBcw7wNeWRNdvrGLOafhvl8hqpBlHVsZJDDHHQxtke1hgYGnJqGvO4cHNLXd3K8H0ueSYbiU2ESCSF5jeOY2I8nA6OHQrrXCvGTOJWdi89hUW2ae6+3vM8+rd/1Qb78HhhcJJnte/I1ne1cI2Xs24AJPef3rNIzHU847jLiw8LRCVlLK5uwcGnIL28ROjb6AEgnyXNeKX4twtWslnlzsD7xODf4EltbZfdeB5nMNwTuuocH+0Cm4lAjfaKUixjdazvPKdnjpv0QQ3AnGtPxLdlX3JiTlY89wt5AX8R6G3QLFxN7HKarLpaIiF517J93Qk6nQ6uj1/EPIBb/ABR7K6bE7yUhFJJvlAvA4/h3j/l0+EqtUXFGJcBPbDXRufFezXk5gfwS7O/C7X0QUjHcDnwN+SphdC73X2ux/o4d13yN/NSvC/H1Xw5Zpd20P3HEm34Xbt9PyXasMxyj4shLRkmYR343tBtf7zD+u3kqTxb7KocrpaKTsXWJ7B5L4388rTq5vzzD0QWrAeMqLipnZnLdws6GUN16WOjwsFZwo3C7y0EzqVx17E3fA872yE3Zfa4NhyC/PLJSw3aSx39/T+9laqL2mV9BEYiWyad18gLnNtzBB73zug6Bg/tTgqWFtReneAdg4i43Fhq08rHTquc1WLPp6iWale+ON73OBabENcT3XAHQXJtfoq9JUCrc5zu69zi4uGoLnEuJI5ak7fRemOdBYg+jmnT0v/TdBJtqRMbuJzH3t79SDv8Al81nDnRi/ibzI1HzHL5qOjkbLuMp827fNu30st/D6V8rrhwa0e/rzvoBuTodEGaK0xAaCHHYC5B+W4/vRbtHSGoaM1yTYhltBqD3up2sPryUpg+CuqSWx8z3iQAbabkaAdB+auEFNBw+0F38SU+EAXc4+TRy9T9Qg0cL4fFO3talwa0C+U2AAHnyaOgUlC2XHLMhBhg2zAZXvHk0e438/Tnt4dgcuNOElRo0G7Yh4G9T993U/IBXqhw9tKLAKKjcC4fjw5oAaBbkAp5rcq+ogIiICIiAiIg+ObmUBjvD0eINILQbqwIg4DxZwc6jv3S5g1BF8zOoO6p73upNJNW8pP8A7eXrsv1BX4c2rBBC5jxbwPa74h6t5H9lRzE6rGCYzcXFjcEGxBGxBGxHmslVQvw4kNabDeM7j8P7bLHHIJhcfMcwfIjkiOj8OcYw43H9jxENka+zRK8d13kH/cdfZ4tr5FVLjvgCbhkmeDNLTXvmGskP47bt8nj523MG4ZdldODOPXYTaGovLBsD4nxD099nTcDa+yDW4M9qUuHWjqrzR7B/+Y0dfvj119V1+jr6XiSE2LJ4nizgQHNPwuYdj0IXLuM/ZtFXM+14bYtcMxhZqxwPvR2/9o62F9FznCsdqeGpM0bnRuGlvddY2II2cAdLctdigu/tFwNnCT46qhzwsc8tc3MbMeRmaWndoNnCxJGg9F8o/a3JHCWSw9rIB3ZAQ0X+Ift+SqHEnHNVxEbS5BGDfsmghpNtzrcnfnooPKJdWH+Q7/I+9+vqg2a95qHvlFiHOc85RbKXOLjdvugX9NtVrsmt1HMHb/nrusAkMZ0JBHyIWTtGy790/eA0+Y/qEGw2JsvhOU/dcdPk79/qV6pmyB+RrSXHTJbU9CDuPVesLwiSucbENaN33uNdRYDUm3JXbBcFDTljzuuA3U3JsSb293fYIIzDsEs672tcbDuAktDrm9/PS2gNld8F4edU2dJ3W+liR5AcgpTDcCiw1vaSkd0XNyA1o8yVsxumx45Ys0UPOTVskg+Hmwdd/TmHx1UKc9hSsD3jQn3Iz8RHid8I187Ke4f4YyHtJSZJDu92/oPIdBopXAuHo8OaAGgWU81uVRWOGEQiwCyoiAiIgIiICIiAiIgIiICxTwCYWIWVEFE4r4OZXgkCzuRG64/j3D0mHv1GR3JwHdd0IX6Zc3MoHHeHo8RaQWg3Qfm1k1zleMrvyPUFfZGeW6uPFXBzqG5DS9n5tVOka6m8XebydzHr+6qJ3hLi2bhx9h34ye/ETZp+Jp9x35Hn5q54/wANUnH0JqaRzWz+8HAhr3AeGVo1Y/lnGtvvCy5c9mcLZwbGZsDlEkT8jtjfVr2j3Xt94fmOSCu4pg0lBI6J7HRyN8UT7Zx1FtJG9W/S2qjQF35xofadBkkHY1MYuLEdpGfvMd/mRk/2DYrmGO8I1OFzdlPGXXIy1DPBIy4u4/EAdj3r+YsgrdPesIYWl7joC3xD9x6/UKfwLh5rgJJAXnlGRYCxsC7z87KyYVgraZuWJtr7u993qf6BW3COHxDZ0n+390ETgmCPqTmsGtO5tYaADQc9LK0F8OCNAAu93ha3WR9vLyHXQLzJXOld2VO0PcNC7/Lj6aeI9B8zyU/w9wsIT2khMkh8T3bn9h0GiKicNwKbGnCSo0aDdsQ8Dep++7qfkAr3QYe2kFgFswwiIWAWVQEREBERAREQEREBERAREQEREBERAREQaNfhzasEELmHFvA5bd8Qt5t5H9l11Yp4BMLEIPyvW0L6JxsCLbsP9PJakrswB29fp/Rd74s4NZXgkCzuRG65Bj2AyYa4hzfQ8iqIKmrH0Tg9ji1zDdrgbFp8wf1GxXXDVS8RUsJfYFwa4+QNj3vn081x2eO36fVdkjnbhzI4gC+QMaGxt30AFyfdHU/K6I2aeCPDGZnEC27zp9P7ulNTzY6bNDoYfpJIP/gOm/nbZb2D8Nvr3CSo7xGrWDwM9BzPU6/orzR0TaYWAUVH4LgMeHtADQLbABTTW5V9RAREQEREBERAREQEREBERAREQEREBERAREQEREHlzcygMe4ejxFpBaDdWFEHD632byGYZXWYHX2uRb9V0Ph7hhtH3iLuOpcdST5kq0mIHkvYFkHmOMRiwXtEQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8PEA8PDxAPDw8PDw8PDw8ODQ8PDw8VFREWFhURFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQFy0dHx4rNSsrKy0tLSstLisrNystLS0tLS0rKy0tLS0tLS0tLS0tLSstLS0tLS0tLS0tNy0tLf/AABEIATYAogMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAQIHAwUGBAj/xABGEAACAQIDAwkFBQUDDQAAAAABAgADEQQSIQUxQQYHEyJRYXGBkSMyUoKhFEKiscEzQ2JykpPC0RYkJTRTY3ODo7LS0+H/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQMEAgX/xAAmEQEAAgICAQQCAgMAAAAAAAAAAQIDEQQxIRIyQVETIjNCYYGx/9oADAMBAAIRAxEAPwCpyZGEV50kSDSV4pAiZAmTMgYDDSeaQpoWIUakkADvMyjDPqbXA3kbh5yNpisz0jIkSeQjeJEiSiYmEYRkSMAvC8IoBCOKAGAhCAzFEYQC8JG8cD1EyJMDFACYg0GMgDAkZExxQPXhcHVK9OigotTJfpKYcsFzEKhOZrLqSAbXF5vFpqlOsTUK1TVBp0PdOXJ0js2nZYAA71N94vzeGwrVWKouYqjubAmyopZjpw0/KbzYmH6V8PmqLSVQ5d33BafXNhcZiVNgOMrvHhfhn4LZ1JsTUShmUZ813qWOQBSzOL2uQATa+p04zT11szW1Aawa2hm1weEf7TToqLua9NAtxrdxbXv0mu2rRNGq9HOGFNit1vkJUkZheRTt1l6ee8UgDJAy1mEVo4QFFHFAlImOEBRGBigKOOEDOTIkxExQgExGEiTCUgYGREd4GfB4irTa9F3R2Bp3psyswfQpccDutxnvo063XoVFfOjI3RtckZtLC+65ZfpNbh6zU3SopsyOrqbXsysCDbxAmzq7crVqrPUy+0UoyhRlFze633WOs5tCzHMRLY7ewjYatTz2LolNKhUkqzUgFJBO/dlv2o3jNZylwrUazq4UM7dKRoXXPdlU8VNmvb+U9k2OKOfC0xvZFdzc3JJq1Ta/cq1T5Tz8pa7sRWLEs2ekxbrGysyDU/wi3lKqT5X5Y/Vz8YMUBL2RMRyMcAhFHAIiYWiIgK8I4oDjhCBImImImKA7yN4QgEIoSBKO8jCSLA2Ptuu2Ew4ZcO6qho5amBwj3VKq0xcslycrtck65iZr+UW0BWwhzUcLTcOrh8Phkotp0d75dLHp30tI7CqJ9kS4YkPXPVcC1mSpuynghmDayIaVRRmBUHfYg2I/Sj9Znj3tU+cf+nMGKMwmhlEcUcBgxyMYgBigTCAoQigSvCKEBmKKEgOKEIBCEIBHFCB1PJzKcLUDEgitUAstxY4c9/cZnxeHV1qgOL5algVIvcVQLeJqLPLyVAalUUsq2xFJrENqCpS+g7/rPUaYFvaJqE4VBuFE/D3TPb3NVfNHIxQAhNLKcIQgFoRRwCIxxQCEUIDhCEBRQjkAhCEAhFCA4RRwOg5Jke3uyrYUD1g2vtlvuB7B6z21aAA/aJottc43B1+H+Bf6ZrOTIDGuhZVDUSesGN8hzi1geybnG0wcw6SnYO5uEe+tVgbnLf78ov7mnH7HJYkWeoOx3H4jMcz40WqOLg6jUXsbgHjMEvhmkRWjhAUDCEkEUZigOKEcAhCECMIQkAhCKEHCEISI4QgbfkzbpnBJGbD1wLLm1ybt475usSlM3OdrsS9uj4sKLke9NHyZYDFUgb2YlNDbf5HSbytUTRva3CoQ3SC9+hIJvl3+zHmJRk9zRj9rmtpIFqGxuLDW1u79J5J79sBc4K5rEH3iCfev+s8EujpRbs7xQhJQIQhADFHFAICEIDjkbxyRCEUJAcLxRwHCKOA44o4Hv2BUy4qgxAIFQaNe249k6R6i2VclMWy3v0uo6SohA136/nOU2e7LVpFTlbOtmDZLEm183Dfvna45q2Z26QWV6gt9pThXU297sMpydr8XUuW20cwpkKq206ubXMqniT2GaubzblOp0S53DZWX94r7jUW9gT3TRyyvSq/YhCE6ciFoQgIwhCAQhCAo4oQIwhCAQhCA45GOBKORjgZcP76X3Z0vbf7w3TssYKVi16lnNZ9yfepJUtv8JxQaxB7Dedy5qG4P2fUUVFvsu9sORw7Tb07JTkXYvlptsonRORmuS1rlbW6ZTqBqPeP0nPTptoFzTe5pfs2JCilc3og8O9bzmZ3Tpxk7EIQnbgRQhAIQhAIQhAIRQgRhCEAhCEAhGikkAC5M6fkTyX+318rXNGllNXKcpcsTkpKeF8rEngqMd9hItaIjcprWbdNPsrY2JxRIw9FqgBsXuqU1Pwl2IUHuveddgeazHPq7Ig/hR2P48g9CZc+ytl0sMipTRVyLZcqhVQfCg+6Pqd5JOs92aYb8qf6ttOLH9lQ4bmeqffxB8BSpr9c7TUNQClU6CrdTT1Lkg5Kr07+4PHwtL3VpRO21UVsQL1iVaulgo3rjDoNT228BGPJa/ZbHFOmuFHMVHQOAxpqdX3ddL7uzXznbjmgw9v29f+1p/wDpnD16IuxFOswGYad1cNp1e+X5s6rmo0m+Kkh9VEnNktSI1Jjx1vM7hV+N5oLA9FXYHhnKVL+WVPznCcoeS2LwB9snU4VFvl1Ogbs/LgCZ9J3nm2lgKWJptSqqGVgRqAbXE4pyrRPnzDq/GrMePD5ahNzyu2G2AxVSgb5b5qZ1N1PC/G35WPGaWehExMbhgmJidScIo5KBCBhAIQhAxxxQgOEIQPVhxZC3F2KDuCgM3rmT0PbLr5pcCEwVOpbrVOkrnvL1WpD0Sgv9Z7ZSrnqURwyMfPpqgJ8bAegl682FYPgMPbhQRf6a9dD9VMy8mf0auPH7Q6+8LyMc816OmQGU1ymRxicSv+dMOnxtrA5ALK4Cm504DzlxFwBcmwHGU5yudGxuJApux6aoPf41MMLAKBpfKeM08ftnz9NDiqZJN6dY3NQ9aoBvRWG9e38pdXJKpmwOFP8AuUWxIJFhaxI37pSvQu27DuR7Ee5WPvUipuQfCWvyBxWTA0KdZegK5lAe6j3iQOsbjzlnIjdYV4J1aXUxgyCsCLggjtBuIxMTaq7nwwYy4auBrnNMnuKkn/tWVLLo57P9To/8XT1X9Lyl56nGneOHlcmNZJEcUc0KBaBjvFAIQhAxwhGogEIQgehT7Nf4ajjwuqW/Jpb3M3js2HNI/u6lanv4HJVT6tW9JT9H3ag7kf0bL/f+k7rmjxvR4qrT4MtGr5pU6I/hxDH5ZRnrukr8FtWhdpgIGAnlPVanauNVQzOwWnSVmZibABR1m8tR3WaU3tnlVWxtW63pUVxeESmi9Vip6W5qEbybDTcO83J7fnIxDLs+pa/tWohiOxnDN5HUecqbCPlFU8VNCqO4rVUX/GfWehgpGtsGa87ZMFVdBSdWZGVKb51cqwy13XeO5h5Cd1yX20uPQ7N2iBV6RH6Oq1gzFSxsexwBmDdxvc7+LqUgAyj7orUgO5Kwf8mPpMmGrmlXpVVvmp4kVB29V1a35+sutETCmJmJepMXjNi4qpSouValU6w16GupAK503G4se0XOukvHkxt2ltDDrXp2BuUq082Y0nHvLfiNQQbC4IMqjnewoTF0HG98PlbtORzr6N9Jh5qNtnC41aLEijjbUjfcKgv0T+uZfm7pRlpF6er5X47zW3p+HU8+D2w2GXtr/wBxv8JTcuLnyQ/Z8KeAr6/0N/jKdlvG/jhRyf5JKSkZITQoEIQgEIQgY4xFCA4RRwM2F94jgadW/khYfVQfKdByDqFcdTt96jix6Yao4+qCaHBj9o3w0mt85FP8nJ8p0PIDDmpjlt9yhi2PzUHpD8VRZXfqXdO30ITfWF4jFPHezpyXK/ZJxOFxGHHvkXp30GZCHQeBstzwBMpTD4Zj9oU2QillIqHKVK1qZYMOFspn0fjMPm6y+8NCPiHDzGvqfEcXyg5HYfFM9UE0a7o9N3Rbq910zobXYWHFTprfS2zDl1DHlxeVeHCU8zlsQi+0xJsFdz16YI3DfYXmz5L7Ho4rFUkSpUqCkaVap7HIgVbGxLfEQq+fjNvQ5vHLAviRlvSY5aN20p5G3vpffxt3z1bc2nQ2JQ+y4RD9pqUw/SPZiBfIKtRrDM2+ygAdwF72+rfiJVejXmXL86W0hWxxpqQy4amtIkcXuWceVwPEGckjlGDISGUh1YaEEWIPkRFUYklmJZmJYsTcsTqSe/WRl1Y1Glczudrq5ff6Q2LTxSDU0qWIt8OgZ1/CRKPl6c1zfaNknDv+6q16GutrkVV8h0n0lOcoNlthMTVoMCAjHJf4SdPTce8GVcedTNPqXXIrM6t9tcJKREc1MxwMUDAIRQgQjijgEcUkiFiFUXZiFUdpJsBA9dMZaQ7ar5vlpggHwLM39nLA5otnZqlauRoWpUFPcpFep6FKA+ecDi2XMQpBSmBTQjcQu9vmOZvml583+yDhsLSVhZ1p3qaWPSVbVKgPgOiTxpGZs99UlqwU3eIdSxkc0RELTy3qJB5CtTVtSNe0XBt2XGskBJNunUInTBSwaab9NPfbh5ypOeGhlx1EjRGwaBVFrEirUJ08xLiQ/mZx3OXyZbHUEq0BmxOGDFEBsaqMBnQd+gI8xxl2G+rxuVGam6zqFHEQmbEYdkbI6PScAXSojK9xodCAd82ey+TGNxZRaGHqG/vO9NqVJNbXZ20Omul9/Gb5tEdsHpmelk8yrE4TFHh9qAFtBcUKYP6Tzc8PJ/pKa42mvWp3FW28rbU+QF/Ju2dpyX2MuAwtLDBs7LdqlS1s7tqT4bgO4Ce/F0Fq03puLq4sdL+Bnn/l1l9UN/4fVj9Mvl2E23KrYzYLFVKBFlBLU+PVJ0F+NtR5A8ZqZ6sTuNw8qY1OpEDCIyUFCEIEY4oQHPXs8Zc9X/ZrZd3vv1V8wMzfJPIJ7PdpU14uWqt36lFHllc/PIlNe225IbNGJxlFGXNSp3r1ltoyU+tk+Y5U+cT6DwtMoiqxu2rO3xOxzMfMkysOaLZYyviGH7WplUkfcoZXNj31Hpf2JlouZ5vKvu2np8Wnj1C8LyN4xMrW1m0OUuCwzMlavTR1tmS5ZxcXF1FzuM8K8sMNV/YLicQTuGHwlZz6WE5Ll3ybxdfHPUoUHqI9OkSwKBbhcpFyR2CaUbN2hhgEelWVFcOaTOTh31FwwVrEGwBG8ia6YaWiPPljvmvEz4WJiOUZp+/QNEEv1sZisLhdwvfKzZiD3A7rzxHldmJCNTdh0YAwuGxuNN393XLTQ3Ogsxv9JylHGY/NfD4KhSPSVql6eCP71MrqWsBa3Zbhw0melszb1YKueogC0EBLU6dhRv0RuouCLnUanjed/hxx3/1z+bJPTHtbnAxpqFKTtRVLqwqYamlXMCb9Ul8vDS54zueb7atXFYPpK1Q1ai1qiF2Cg8CBYADc002wObumparj2+0VWN8uY5ATqSTvY+M7HAYCjhk6OhTSkl8xVFCgk7ye/QSrLbHrVYW4a5N7tL1MYAyLGAmVqV9zwbF6SguKQdeietbeVtr9Nfk75Ts+mdr4Ra9CtSYZgyMLHjpu893nPmnE0TTd6Z1NN3pk9pViCfpPT4l9119PL5lPTff2xwMUDNbGIQigKEI1F9BqTwgE9uL0Yj4AtO/8ihCfw3mbCYQLYt7xI8BMS0jWrZONWtk83e36zmXVV78hcB0GEopaxShRUg/E69PU/FWI+WdAxmDACyEjc1Sqw8DUaw9LDymRjPHyTu0y9rFGqRAk1kLyQM5h2yXjKg7wD4iY7x3koZFA4AekGMgDBjJRBkyJivI3kOjJgDImMTl1DKpnzny1oCntDFINwqD6opP1vPooT575fvm2liz/ABr9UU/rNnC90sPOj9Yc9CEJ6LzBCEIAikmw1M2eFoBBfe3b+giw9EIO87zMt4BUaR2UcuNw5O4YugfLplMHmCrcEMujCxB7CN36SJjaYl9HbPPsU7bWPiCbzIZ49hYoVqAdSCGJcW+Gp7Rfwus9rTxrR+0vcpO6wLxiRjEhKV4XkbwkoSBjaREkZKEYRxSHRGEdpICcy6hCtVyIzn7qlvQXnzXtrFdNia9S9w1V8p33UHKp9AJdnORtoYTBOAbVKvUQcbncf1+Uyhpv4dNRNvt5vOvu0V+hCElabWErQjhA2lpICSCwIgYzIMt5ktEYFoc1e189HoGPWp+ysbbhmakfNcy/8kds7xhKB2FtVsJXWqM2XRagXeVuDcfxKQGHhbcTLz2TtFMTTV1KkkAnKbgg7mX+E/8Aw6gzzuTi1b1R8vT4mXdfTPw9MYjtC0ytclCStC06ckJkIkQJkIkoQyxWmQLAgDU6AcToJGnW0Qs8+0cbTw9NqtVgqqCdSBuFzNTyg5YYPBKS9RWYjqqpuW8ANW8tO0iU1ys5X19oMQ10og9WmDqbHQt/hu8TrLsfHm8+fEKMvJrSNR5lj5Z8om2hiDUueiS4pLu8Wt36eQ7SZoI4xPSrERGoeVa02ncgCOEJKBCKEDdxNuMiJIGEsRikwnbJhIQwMJseT/KmtgKgCkvSvcpexQneUJ014qdD3HUeGsQJrstzImImNSmJmJ3C+eT/AC0wmLAAcB7aqB1h4p7w8Rcd86KhXpv7jo38rAz5jNObKhtrFpoMRVI7KjCqB4Cpe3lMtuJE9TprrzLR7o2+jykhUqonvOq/zMB+c+fP8psdu+0f9DD/APhMFbbmMbfiaqjspEUb+PRgXnMcT/LqeZH0+gau1cOozGoCO1Qzj1AtNLj+cDZ1G46VWI0srhz6JmP0lEYgvUOaoz1G+Ko7OfUyIQCWRxqx3KueXaeoWhtPnYGow9FjwDEBB4gtckeKCchtblvtDE3HSdGuuiXJ/qa9j3qBOfAEZltcda9QqtlvbuWOpmZizMWZjdmZizHxJ3wFISREkvfO1bC62MjPRiF3GYCIhElCKEkO8IoQNveZV0tHCQllkKjWhCSPHWaefLCEgMpI5IQkmj6OIraOEgK0VoQgEZhCAR0xrCEJZMUNJ5RCElEsbiRihCDhCED/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTEhMWFhUXFxUXFxgYGBkaFxUXFRUXFxUXFR0YHyggGBolGxcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHSUtKystLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAXoAhQMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABSEAACAAMEAwoICQkGBgMAAAABAgADEQQFEiExQVEGEyJUYXGBkaHRByMyUpKT0vAUFUJTcqOxwdMWF0RigoOiwuEzVbPU4/E0Q2NzssMkRfL/xAAZAQADAQEBAAAAAAAAAAAAAAAAAQIDBAX/xAAmEQACAgEDBAMAAwEAAAAAAAAAAQIRAxIhMQQTMlEiQWFxkfDh/9oADAMBAAIRAxEAPwDXfB4P4PCd+bYeowW/N5p6jAAv4PA3iE76/mt1GCxv5rdRgGObzA3mG8b+a3UYFZnmN1GABzeoG9w14zzG6jCZjOoJKkAZnkA0wgHxLittt8y5ZwgFyNNMgDsrt5hDduvMKj8IVAGg1IxaCKaa50IyMUi4SxVSGoaGnYRUA0yPVHJ1OaUPH+zpw44y8jRWO+ZbmjAoTormvXq6RFoZcZESMuuLy698aUuulRWo1Gg08lIjp87m9Mh5sSirRY73BFIbEqbs7RA3iZs7RHYcwvDAwiEizTPcwPg0zk64QxVIEJ+DPtHXAgAfwz/PPor3QW9z/PPUvdHNMV8fMJ61/wDMQRmXv8xL9a/+Yg7yH2mdM3qd556l7oPeJ3zjdQ7o5nivbi0v03/HhNb14tK9Nvx4XeQ+0zphs87z27O6CNmm+e0cypevFZPSx/HgYb04pI6z+NB3kHaZ0s2ab84/XEK8Tva+MmPhY4TmSMwa4v1aVrHPmW8+KWf3/fQU602xZbK1nkLNJGVXAwas1maS1NYph5chZLB46NJaEsoUspXDNQ1pUAiWSKaKqwLU1UJGiK6ZY5aSy0smrlQHJZmzNRmcwcugnPXEybZpAlypEw4XUBeAzrR6IWUGpqjPqLHMCucLtdjWVKTAuFFmITQE0ArTtpnq08scM5XJc7u/z8OqKpP8/wAyVbJ6SV4ZzpkPlMeQRNsGAIuOYFYipAbyScyOjR0RhL5+GJaZhWTLahADO1aigoQMa6toiKJ94H/kSvf95Bgjo32DL8tjqS7186vp95g6SfnU9Id8cxW0Xjqs8nq/1IlSrXeeqzSOr/Ujp7v8f2Y9r9OhkyPnE9IQRmWf5xOuMF8KvTi0j3/eQDaL14tK6h7cHdfpB2/03m/Wfz19+iBGC+GXrxeV2e3Bwd1+kHbOgb2NhPP/AFg97iQJcAoYih2RjLA0+/RB73yQ8yclYTg5ae/LCoBlpYrn1Qh+FoiVTaKwlpY5oVDIolDXFTMazzXGMEGWpm5lsBWWwIYgcE0ahzGzZF1aQwUlBjbKijSTXk6+iIJaVKVnnSlltRpbLlkKYnFaUoeDXVWgJrBTUbS/AtWVs2w2e0TmbMulMS4mw1OYbDoxArTbVeaLG02QPKdDTDTWCwGE1zGVRlDFgsNllg2iUSVIY4izE0GkEE6QS3LXTFjJKzkOB8jlUAHnBDAg5GhFNcc2TytXS9/RvDinyU18yKqjhg2QVmGgkVFRpoKg7dIiFLXVF1d1nLSZ0psyjMgNPNowIGysVMo5DLrzhx9CkOgYREmxAHXXrhNlk4jTMRcSbNhGo8/uY0oixvmEIMonSeiJRTk6jCcHP1VhisZEqBDtOXsgoAMubzv3idn6h+NCfjO/eKSPf99HRDL5IQVjqaMrOf8AxlfvFZHZ+NAN5X7xWR1D8aN8V984TT3ziGOzA/GF+cVs/Z+NCxeF+cWs/Z+NG7w88Jw8x+2FYzDG97xSVPe0y5ct0lO0sSwQwYLVXJDtwagjCAK7Rr0F4myFZdmnkKXIBwlg2+TBiJJ0sWLnESTmwrphjdzIZrHNKAFkAejDJlUguvVU010pGT8HFxyp9kmTJoJKT2VFDMFQb3LbQDTSSeiKk127b49eyVeqjTSdz4RgZLlAMVVIxA1Csa1Nc8R66w1fVqsljUqSZTMAww75TgvVd8KVKKxUgkZ0rTRFvLtaCaZFTjErHnswKNO2OfeFwUmySGPDRg61yOBqqafttHNjqc0ps3ncY/E6HdtiMgK5moFcVdWwk5glMEwULU0EtWunLRHOntd4YmCSZZUM2HLStThrR9lIEiUDQsWcgAVY1NAKAdUXVlfm6oUNm2N8ECyXneo8mRJ6v9SLD40vk/osjq/1YsbPNoR3mNDZnqNH2H7RFpkMxfxhfPFZPV/qwPjC+uLSfs/9sbhgNnZ3GE02U7Qe2HYjEfDr54rJ9/3sCNsU5PsMCCxl40uGmSMQ197ov7us/WP8xDbXzug13fZ+sf5iO6VHKkzbEQkiMO18X/xGz9Y/zEIF7X8f0Kz9n+YjJo1SNzSCYRhvjW/uJWfs/HgmvS/OJyOz8aMmh0aq+rPvlnnINLS5ijZUqQK9Mcn3JWCfLm2hvGJgEksopwgxdRUE0YVU7Y1ZvS+jk1jkYTkxBzCnyiPHaaV1QnwaXiZ7znY1ZRZFJ2gNOI0cx6zFqKeOTJtqaRaXLZ98b4Q0qY02mDEGQAjAdRalctOwRiPCktbbISjrjlqvCw1FZjZ8BiNcdbs4OEUpoT/Cjk/hbLfGFmwCrYEIG0iYcjHPi8zbJ4kqzLFlZxnGZs9otuqTL6f/ANxPS03gNEiV7/twtJVmoEXV1tlGES1XkdEiWeg+3E+yWy9l8myyjz1/FgSJZvisJw+5jHG9754nI9/30F8b3zxOR2/ixVCNjvfv7mBGO+N754pI9/3sCCgOsuPekR3ESnEMTI9SRxIhzBzRGce9YlTTEd45pG0SOebt/pCGP+0PtDLLr9+iMGjVCfflhHwcGhU4TjFSoWppLmtnUcnbC2FIOZOAVa18pjoOqROGrniUMRIsZw/2j5YB8n5obF5Yym62z+PWpLeLXMgVAq2wCNeluRSymo4Qzwmn9koigv8Asu/PviGuEBdB5Tr54zki0yhk2fKopEqQh16IEhaAg5RLsuGtCagxIy3uzeyMsjzxZMnvp+2Kg3dliQmFSLWymjiKEWQXm6IBHv7mBLnBhlCoBBU5O2ChVYEAjKfl1e/9yzOqb7MEd3F7a7mmdU32I6N8IgmmR6T/AJOXb0c3bdzen90P9b7EIbdteeu6H+t9iOjM8Ms0ZSLRztt2t5f3S49Z+HDR3aXjrup/rPw46I/vphtujqjJlo55+WV4afiuZ9Z+HGp3N3vPtMl2n2c2dlaYApxcICzscXCA86nRFseeE2hOAaEjgT9FNUsbRyxFlAlNNM6cry1EoGXvbhqs7b0A4K/JpQZ8sZrdffdokTMEmytPVlBZhj4J0YThU6hWNY0hqt4x/LOpPM+jEWehBcFi2jMgDVyARk+SzmBvy1En/wCEekv96QqXftrB/wCC/if2I09o8owcgcId8Fr0MrbNupt4GV2k9Mz2IUd0d4H/AOsPXM9iNtYRl3/0iUy80Vf4I58N0F5arsP1nswv8o7z/u7/ABO6N4V2UgsJgtegMJ+UV6f3cOqbAjd4TsgQWBLrCqxzb86qcSnemvdBjwry+Jz/AEk7o69Rz6TpBhJWOdjwsytdkneknfA/OzI4pP609qE2OmdAZYbZffKMBM8LVmGmzTxU00y/agz4VbPxa0fV+1ENDRu6e/8AtDdpei6CeBO+yUNfPGHHhUs/FrR9X7caa4L8S2yd+lo6KN+TC1K1rJz4JIpGbRaLedaCGY72/lHzfN+lEWdMxYjQjydIA1Q7Z5E0Tp7vOxy3Zd7l4AN6wJhfhDNsRzz0UjPbrd1MuxTBLeW7l1DDBgoACVocREZPktcDE5eEff74KQOEIzDbs5bEkSJv8HtQcvdjLBr8Hnfwe1BpYzplh0aYlk8vbHP7N4RpS/o0/rl+1Dp8J0ri1o65ftRVCNyTzQnq6owp8Jsvik/0k74SPCUvE5vpJ9wg0sRva+/uYEYP85A4lN9YO6BD0sDpImHb9sKxnb2w2Dz9sKBjosxFmsJKmBXlgiYACIhp1hwmEE+/uYhlIb3vkHVDFokKa4lBODKoGt1EShzRDtsurZEjgpow65o2iM3wUuRz4JKNfFpmzfJXUTTVDM2Qq4gqgCi5AAbYYsVqlzXnS0nzC8lyJgoowlqsulM8tkPshAerM3k+UBXQdgEZvkszU1eEYOUuYhc3ymgSxmIQzQ2AZf7RNpEOwe+mJxaKJEmsJoYUW5YQW5YAFUMCCB96f0gQAZIeEywedP8AUnvhQ8Jlg86d6pvujRfEtm4rZ/USvZgC5LJxWz+olezG6ZmZ/wDOZd/nTfVP/WD/ADl3f58z1Mzui/Fx2Q/olm9RK9mDG5+ycUs3qJXsw7Az58Jd3/OTPUzO6CPhJu/52Z6mZ7MX77n7HWnwSzeplezBfk9ZOKWf1Mv2YTYIoB4R7v8AnX9VN9mLWyXitpQTpDVlsJeEsrA5WhlNQaEZqdUSfyfsnFLP6mX7MIaUJRKSpaKg3mirRVFZpOQAoMzXpjOXBcRxVmZ0MvS/yWzoxHnc0VN+7o5NlbBaWozAFcCOwIFa1pWmmLOXOmZ8BdL/AC+U/qw1arDKm4mnSZTEAAFwr0BrWhYZRl97lsxLbrbJU8KZn/027oNd1dlrpf0G7otGuyQGNJUoc0te6FLdsmo8TL9BB90VsAdk3dWJdJmeqeJDeESwjXN9U0WdhumzHTIkeqln7onfE1l4vI6JMv2YrYkzX5yLFsn+q/rCD4R7F5to9UPvaNT8T2bVZpPqpfdAN1Wf5mT6tPuEGwjKnwi2LzLR6tfbgo1nxfZ/mJfq0H3QcGwEjETB4dsUv5WWAHK22f1q98D8rrAdNsketWLpkl4DyQMcUg3XWDjln9YvfBHdZYD+mSPWL3w9xbF0TU7YVWKT8rrBxyz+sXvgvytsHHLP6xe+FTGXgzistTtvjAITwpWjDqz1mGE3XWAfpln9YsOJaw7Y5YLozSyrKVwsCpII4WgxElsVHkhWKyLKebNSSwecxaYcQOMqWANC1BQE6KaYsEYsHqpHk6SNh2EwSTiAPEvobWlNP0oi3jfcmVUT3WSWAwh2UFgK1Ioc6VEZ7uRo+CsmJwmg1XPRFad0NlxE/CJfpCFLujsvz8v0oqiTX3e0WYjLWLdVYflWmUP2omtuvu/jkn0oqmSy4nMYarFUd2V367ZJP7UNndhd3HJXXX7oNLGXaka4EUh3Y3fxuT1nugQaX6AY/N/d3Fz6yd9zwf5v7u4v9bOP88aasAtFE2Zn8393cX+tne3AHg+u7i31s/240pfMChJOgAEk9A1csU1+X+LOCN7YzQRSU1FZxWh3s1ILa6bAeeKUZPcnUltZE/IC7eLH10724A3AXdxc+sne3GikTcSqSrISASrFcS11NhYivMTCyfesSUZxdwN3cX+tne3DhK2bCihElpMlS0xTKaFKooLDMnRpJ540KmKG3WbfGo6S3AnYgHBNCgJU84MRKvsqNjk+0lFUuEUHggtMABZmAVRUZkk0A1xEvO5ZFq4VoklmQALR3FA2Z8hhsGmHbXY9+VRNlyXCkOobFkykUYcunrMS5ZNHxU+TorsOmojNVexbsxo3M2QMaSv43P8ANDn5NWX5r+J/ai1rwmhY0xZIix7j7E2mSD+8m/c8TfyGsHF/rZ3txY2D30ffFlTk7IZNmZO4a7+LD1k724I7h7Bxb6yd+JGlNPcQVByddIYWZsbibBxcesm+3BxoSRye/TAgAdwNsbqMImEqCSDQCpyjnY8EVl+efoRe+Jd0eDuzWO0SZyMzMGNMSgDyGz99saxim6M5OlZvMWAfrMBiOsbFHIO+MjuufDNsrjyhNXPXpHfGmmPU1jH+EWzY5CahioTsxUEd+SKWNpHFjdzTZst9G0U6IXvo2jrjma+CyyZeNmUPJL0ejEpfBNY/nJvVL9mPN2O86GJw2jrEU5lsXyc5zX1LsPJGY/NPY/Pm/V+zF4m8phGMCjMP7QjIKANDZREi4klJT4R4xtB+Sm3mhxCQHxMNC6aDzuuKe6pvBcWiZLBxvve9zppG9ZYMeJvL01pyRFvzczZ7cQzzH8WuWFg/l1rXHi8waCNcRVS/4XdokYxibMdcHjHnDrEZaXuGs2IjExH7Hsw8Nw9m2v8Aw+zF7Em9sM1aeUOsRY7+nnL6QjA2XwcWRtLTOje/vSHz4LLHreb9X7EGwjbmdL89PSHfDbTk89PSEYs+Cyx+fN+r9iE/mtsXnzabfFdvAithUbXfk89fSHfAjFHwW2Pz5v1f4cCFsM31dp7YgW56TJPLj7AO+J1Iqr9bCZLf9TCf2kb71Ea4n80Y5PFjyOcZHCpzcHUMjt05A05jWGb4sInymlnWMueEy3Xfj5OKgrSuLURUnLRs069ETgY9TlUcHBz6bfM+VhU/Iop6MhXnEauw38rha5EiH7zuqVOzYYW0YgBnyMNYiBZNy7A1V5ZGrhU+3MR5+Tp5J/E7YZ4tbmhR65iKtJrAiktjUzDkV1jlPJE/ed7QmYy5AnCpxFqDKppQDbFcwHB8cR5eje+bzI58uNxSs2xzT4GbLegmqd7XHgxI2F5ZwuoGJTRsiNkPb7k1VIJVMmpqxbCdoiPY7HLlg4JoTHV2oJK4nYDEWogqx26YTbjh0Pj4P6uVD+qBGFLVsat7FfLmjGYk1ioscw740WAmbI0JL6wtlp9/uidKt8pjhDqW2BhXoppjPqxO9p57gEbQMyOukPbq72ko8uTNIXfHMuVQUoy6DUaDXCK7WEb48OqN2YzyaZUX7D319MN199R7oi3TaWeWCx4akoeVl19IoemJb6cuqMWqNLDA54EIKHUaQIQzEi7b+45L9GT+DCJ113sBitNpSbKSrsgCAnACQVwylNRzx0I02QCgORzByIy0RqpNENJlHJmFijAsQQDQeTmCKmvRkCebXE0NFDYUwyzLbypDslcIZsIOWGvnALo27aEXSGoro9849RO1Z57W4tjEC+L0WzSXmuCQtBQaWZiFVRzkgRNMUO7iyb7YLQtKneywHKnCHaITBclbYt3kiZMazzkaRP8AJCMQ6sxHBUOmVTUaQNMapy3BogOTnM8o5I88bn6fC7OKGhnya+tXXHoWYFyrvporaDM86PP6p3VndgVXRCuiwPJVwcc3GzzKzHBwBwOAmWSjUIp92tnnOZW9TRZ+C+IAkb5XBTyRqodPnRaXPImqjC0PMdizFSgmoBLJGBTnmQNfNp0xE3QXc1oeWkvHiCuaOWzFU0Y45km57bs3bqJirLd1rLH/AOUecO1fsiY102sfpbem3sxaWa5LTLbOWx5ge6NDde5qfN/tBvSa2agP7I28pjZQm9qMnkivsi7grunb47zprTFlZ1YkgGnkioGunuIyHhQvlltIlphJEk1JUEqZjAgofksDLB9GOnX3ednsNmYKcMpBVjrdtQG0k6Brjzze95NaJ0yc+Rc1pWuEAUVa66AAV10rHYlpjRytuUtR1WRLtNpCvZrRvKskt2zIDGYuR8k6liT8Q3nX/jv4j98uIF0z2kSpSrpEqSp/ZT+sa+6rw31RWmKOGb+TOuHijOm470P6d/Efw4EbTAdZ+2BElEsDkgwPf/cxz/8AOcuqxzfTSFr4SmOiwzPWqP5TF0QXttTe7Wdk6WG/aTgto/VwQ/JVUFBtJ25nM1JzOeee2M0u6prXOlBrK0nAWOMzAwIagK0CinyTp+TGibTHfgdwOPMqkLZqwzbpYaU6+crA9IMLrCLRMojE6ArHsjRmZ5zuZvHyf+5L7HEa26t31vCyQ07GGmtLOJEJwjejpArXhnMxQ3RPlb7ZgJRBDosw4z4yrDCf1QK5gZGg54K7ZkoCz4kY0mzWbh0xALKIAyypQdR25YygnyjojJrhmiTwk29gvCliuNTRAclVTlXlivkbsLQ06XPtFonEhZg8UUX6Iw0wEVzzH2RWWKfKCyao2TTi3D8pcIoBlkRt5OXJLWmTglY1Y8IlwGFWXEOCuXBNKisEccI7pBKcnyzc3R4ZZ8sBZ8oP+sjlT6JBB6xEq2eGJnyl2ck6jMmfyqM/Sjk08ribBULU4a6Qtcq8tITLehrF2RSNBuhv+0WtwZ8yoGaoMkU/qrtprNTyw1dVkM2bKl0ydgOQqM3pzKDFfONaERrdybzBJea2JklBpclNjTDimUoK6xnnTE0ZydKy4q9jZNma7c+jV2Ui2u/JQRpjFLf83izfxexFnZt0E/DlZcuVnH8kefu3Z2fVHR7JbQy56eiBHPl3TWhdFmHpt7ECKFR1UTOUdkOKxOv36IZXkhQTk+0QyCJf4rKAPzkvb53LFXMOZi0vQVwLX5RfoVSPtYRUOczHd0/icmbyFViq3WWverFaHrQiU4B/WYYV7SIsqxjfCg7tZTJl0rQzZlSB4uWRWldJxFeoxq2ZxW5yu5hWcnOT6Kkj7IesA4MnntP+GsRbnakwHYsw+jLc/dEmQcO8j9Sc3Xvi/wAkS9zVDMleBLPJP7EiJM8hf2vtETpXky+a0f8AhEGZ5C87fywuBjUFAgQAOLNypy1EdYuyx7zIlStaoC3034Tdpjld2y8U2WpzBdB1sBHZLblMYbDTqyjm6l/E1wr5C7KlSBQ9sXgU6hFfdcvSe+LGORHQwqHb2wII11AQIYF0d1dg47Z/XJ3wQ3WWDjln9anfEVdwVi+ab1jwi1bi7Gq8GUcRIVfGORU7c8wBU9EapW6M20kWdstAILg1BoqnaozJHOT2RW1h63TBXCNCig6IjCPQiqVHDJ6nYsRwfd1fAtVsmOpqi+LQ7VSuYppBYs3THXN2V6fBrHOmA0bDgTaGfggjmrXojgcKRUEXVhtqFgFlYAJE1XwsSZjCS9XOKtK6cIyB6oOQ6HeKhsrPPxZ6c7QRTLLX2RBuny2P/Sn9slwO0iJCim9ctnn/AG2gRJY7Y3l0k4g9MNoxUIqTgNMNejTEeTPlKJJdC4DNvqkkBxVTRSDUcGmsQUjQn0Z3/i0RJnkD6TfYkNgJnspZigIWpwgmpArkCdeUNwIckSi7KgoCxCipAFSaCpOQHKYQC7DOCTEc6FdWPQwMdnv20JLcO7AK9CDnQ1FcqRx2fd7JP3h2RWDhCxaqLUjhFlrwc6x1qxyktdhVWZZrWdt7ZlYkNgyDAjPNSD064xzR1RLxupEux39ZQoBnrXmbuh74/snz69Td0RbuuKz4BwD6T98TRcNm+bPpP3xx7HUEt/2T59f4vZgQ4u5+zeYfTfvgQ6QrOgLLrr6ifvMQLfOoSfNGEfSYVY9AoOkxPnOFUsRWgJ0bNWmM9bHOS6xp+k2bdsdXTw3s5s0tqIxaBWBSE1jsOYxvhMvCVLSQs6VvqsztgxMtSqFQarnkXHXHII6b4YZRKWZtQaavSwQj/wADHMozlyax4LtLrmSRND4cRkB1CsrnCzy8+ATTImtdhhoD+zGyzze3fm++GLtchJ5UkEShmNhnSlPYYsGtBrLGRAsjjMaKy37YVjK+X8j/ALcz/wBg+6IreQv0m+xIsFmp4uq08RMAoflVmcI16cuWClpIO9B3cIQ5mECpV8IoF2ioXr6gCsEOFY0Js8hbPwUlzXRZc2YcTVbEWUhKBSFBdAy6igNaGkUlpRQ1EJK5FakE0IB4WHIHk1RQgKu+ZE8IABdhwimE8tAKc1I1fgsvjerQZDngThTkDqCRzVFR0CMbN0xNtF4jxTJLwTkJZ5mJmM1sQZWYMaAgjVTTEsaO3ySZbtL1aV5olC0mKuz24WizybSmkgE66H5Q6DURZSplQCBp99kcM46ZUdUHaJcidlmewd8CJNn0f7wImhlbY7BbpMwfCrTvkshjhBBzQqQT4teTXriQXqa7YnboLRWZTYg62Yk9gWK0GPQwqonHldyHlMNFoMGGqxqZFNu0uY2uytLXy1IdOVlrl0gkdMcXF3zcDzMDYZZCuaUwkmgBrrrlyZbY9BK0VN77nLPaamYhBamIoxXHTRjAyamqsTJWUpUcruXc/OmSZrIUoyKKYuEKzUZSw2Hez2bYnzdy9pDMMK1SzgEYhlUAV627DsMaSSkmyNOlJKZsM1AGrXgiVIwq2WXCds66zDs+8gzNSzuMWGmbV4OEkE4PJyOZ0gLnrhUi7MeNydq4HixlKevDXXvhGvPIjLTnFbbrgnypSs6gA42HCGYGEGgrWuRy00FY6A95aQJLcKppj+SoY5UUUHBO3XlnFPf9tIkq7yKKG1F1JHCUUJJC1GeQzoTzKgsx9ntsyzsRgwvgeWwYHNXFCHU6cjlo0CIxYk5nPLM9QjpMncvZ7wQWlnmh5gBbhA5hQAKkZilNQiDb/BqwBMicGPmuKV6R3QITZQWqRZ1TKUWCYUmzUYtV3zDDMCmTYQKVyrFI/i5hyBwMcjQg4T8qhIIy2kROtgtFl3yQ6GXvgUOCKhwhDKwJrnXOoOsjKIl3WJ7RNWWmHE5oMRCrU6Kk5LU0GesiBu2M6P4PL+NoafKmBVLHfFVRRRUANhGoVAPKXJh6zXPaGZgLQwGI4RvswECpoMuSMZuXx2W1SJjeQ5VCQajxgyVthGRI1Ujp844Z1dv35/fHN1Crc3wvehmRuYtZH/GOP307vgRqbEww6YEYGtke+JtZ0z6QHUij7awyjRXm3b6zTKUxktQ0JAY1ANMtESZUyPQx+KOGfLJWKGS0KrDMWSOhoMNDVYPFABUX2TLZWkzpilnMyYm9qVLMolnhYGPkIB16KxVveFoqxM9jmGWilcyQxBCyxTDibCc9W2NNPk4oYNi5Yl2UmZ82maSwa0TQrKSSq54sLUU+KzU0Sp2VpDF4Smmy6CZMaZQnC+IpjDeLpUDggV2bMxkdMbEdsF8DO2FuOyLuVsrSbOiPSooDTRkoGXVFyrZ016aa6c0Q7YzLLYqeEFNDzDTHPLHupxTZiiyS1DNicYmxBgSCwp8upAFADWnQ0Lk6Bfd1SrTLMuatRqI8pTtU6o5feFzTLC8xGIwupEuZwgGzHANGCgkaQwIyy2xvLivK0NiWZLZxLRWZ14TKlAMbAZzF2so2mlAcNrabPLnyyrhXluAdoIOYKkdBBEIZyC2TZQXFZ9/OQDtMCUDBlZcJWtNB1jVHVLXNqEbaoPZGeO4WWj/2rmVUNveVDQ1ox1joiw3QXkZIl0TFUEUzypzA8kYZ1cTbF5GpsVp4IygRkLDuofDQWbRtZh/JBxy0dBpt1A3u1vXQ4VxzEYT/ABK0RZM+NHu5uszZImyxWZJqaDS0s+WBtIoGHMRrjD2S1hgM47McrRx5FTNIk2sJxRAkTolB6xtZmPYoGKGqwdYLAdBg8UNAwZMACi0FWEVgVhAKrGcte5iTvrzRVQygVUE704PllQeGhGRAzGRFaUjQkwStDGiw3JXYtlqWmKROwNLtKHFvTKKCWxP/AC9NK5cJlOmrVF/kWK0hGUS0mksUocCuTwpkg6DKJzK5FSwJGdWelTHlljJfBiriWmKW9dONDkecUPLFdeQtM5UlTVkPJVg2EGarGi4QAzMzKNByNcqEkZQ7QyzmGKufM4WUPTJplyxiNWCgfSalO0xEQGOPqZbUbYFvZdXZMODXAg7CKIIEc6Z0G8WuzsjAbrtyLy2a0WVCUNWmSlGaHW0sDSu1Ro1ZZCYu4SX883o/1g/yCl/PP6A740jJxdkSimjIWK2BhpixlT4lWvcYoJwTiG1HBp+lnn9vLFRNs8+SaPLLDzkq38PldkdMcsWc8sbRbrOrCw0Usu8ErQtQ7Dkeo5xMl2kH5QjSzOiwDQMUQ/hC7RA+EDbDFRKxQeKIwnDbA30bRCHRJLQSmI5nKPlDriPOvWUpoZgrsGZ6hABPZoanWgKCWNANZiua8Hb+zSg85+D2eV2RCtd2Gd5c5/2QAOgGtIylmjH7NY4pMlb9vhxEgAeSpIr9I8vJqiTKZajMdY74o13LS/nJn8PdFlY9xkvSzzOtfZjjk9btnTFaVSNJLtKAAY09Je+BFQdysra/UvswIKQzpghwEQyIel6IZJU2xeF/vEWbZ1YZiLG3jOIkAFTabrrqDDYRX7Yq3uiTXORL9AD7BGrBhdK6c4NwMNarllfJRR0RVT7mU/JpSvkmnXSOhzpS58EdQinnyxXQOqDVJfYaV6Mil3oABhrTWdJ54WLDL8wRorSopoEHLlrTQOqJ1S9jpejOi75XmKecA/bEmVJVfJAHMAPsi5aUuwdULs8pfNHUITtjVFSqxJk2Jm1dsXljlLsGnZEl1GwQaR2VdnsAXlMSwh2GHwIUIqiRgSfekCHwYEAH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEBUREA8VFRUXFRcVFxUXFRUVFxUYFRcWFhUVFxUYHiggGBolGxkVITEhJSorLi4uFx8zODMsNygtLisBCgoKDg0NFQ8PFisdFR0tKy0rKy0tKy0yLS0tLS03LS4uLS0rKysrKystNy03LTcrKysrLSstKys3KysrKysrK//AABEIAH0BlAMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcBAgMFBAj/xABWEAABAwIABA8JDAcIAQUAAAABAAIDBBEFBxIhBhMUFyIxM0FRU1RzkZPRJVJhcXJ0krKzFSMkMjQ1Y4GxtMLSFiY2Q4Khw0JiZIOEoqPBpES1xNPi/8QAFgEBAQEAAAAAAAAAAAAAAAAAAAEC/8QAFhEBAQEAAAAAAAAAAAAAAAAAACER/9oADAMBAAIRAxEAPwC8UREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERBR2iTGbUSVD9SyuihaS1gDWEvANtMcXXOfbA3hbfuvL1w6/lcnoxdiiZWEaS3XEr+WSehD+VZ1xa/lknVw/lUQRMEv1xq/lknVwflWNcSv5ZJ6EP5VEUTBLtcOu5ZL6MXYsa4VdyyX0Y+xRJEwS3XDruWS+jF2Jrh13LJfRi7FEkQS3XDruWS+jF2JrhV3LJfRj7FElhBLdcKu5ZL0R9ixrh1vLJeiNRNYyRwIJbrh1vLJeiNNcSt5ZL0R9iiWSOBYfGDmLQR4QCgl2uLW8tk6IuxZ1xa3lsnRF2KG6lZxbPRCalj4tnohBMtcat5bJ6MXYmuLW8tk9GLsUN1LHxbPRCalj4tnohBMtcWt5bJ6MXYsHGLW8tk6IuxQ3UsfFt9ELOpWcWz0W9iCYa4dby2XoiWdcOt5bL0RqHalZxbPRb2JqWPi2eiEEx1w63lsvREmuHW8tl6IlDtSx8Wz0R2JqWPi2ei3sQTHXEreWydEaa4lby2Toi7FDtSx8Wz0QmpY+LZ6IQTHXFreWyejF2LOuLW8tk9GLsUN1LHxbPRb2JqWPi2eiEEz1xq3lsnow9ia49by2T0IexQzUsfFs9EJqSPi2eiEE01yK7lr/Qh7FnXJruWv6uD8qhWpI+LZ6ITUkfFs9EIJrrk13LX9XT/lWdciu5Y/q4PyqFNpmA3DGg8IaAulhwIJhrkV/LX9XB+VZ1x6/lknVwflUOyRwLICCYa41fyyTqoPyprjV/LJOqg/KoeiCYa41fyyTq4PyprjV/LJOqg/KoeiCYjGNX8sf1UH5VnXIr+WP6qn/KoaiCZjGTX8rf1NP+VZ1ysIcrd1NP8AlUMRBM9crCHK3dTT/lWdcrCHK3dTT/lULWUEz1ysIcrd1NP+VNcmv5W7qaf8qhiILs0K4z4HU41dIWzNcWkhmaQCxa+zcw27EcLTtAhFSeUiJg4ZytJJA0Xc4Dezrs8i5zHbP2rR7Wnbbfx2KK4apZxjelNUs79vSu2kMtfSxa9toLLKdhNhECTvABBw1SzjG9KapZ37elfUaEZ/eNrOdiM2a+f6loynY42bDc8Abc+HMAg4apZxjelNUs4xvSvokpGtzugLRe2dls42xnG2tNKj4sdAQctUs4xvSmqWcY3pXTSo+LHQE0qPix0BBz1SzjG9KapZxjeldNKj4sdATSo+LHQEHPVDOMb0pqlnGN6V00mLix0BNJi4sdAQc9Us4xvSto5GuzNcD4ittJi4sdAQRRg3EY6Ag2yCmQVm7e9P8lm7e9P8kGuQUyCttj3pTYd6f5INcgrOllZ2PelNh3pQY0sppZWdh3pTYcBQY0sppZW7GB3xWOPiF/BvLo6lcM5glG/nY4Zhtna8fQg4aWU0srN296Uu3vSgxpZTSzwLN2d6Vm7OAoNdLKaWVtdnelLs70oNdLKaWVtdnAVjYcBQaubYXOYcN1x09nGN9ILu9kZzFt/HYrTSYuLHQEGmqGcY3pCaoZxjekLfSYuLHQE0mLix0BBpqhnft6QmqGd+3pC6aTFxY6AsaTFxY6Ag01Qzv29ITVDO/b0hb6TFxY6As6TFxY6Ag56oZxjfSCaoZ37ekLppEXFjoCaTFxY6Ag56oZxjekLOns4xvSFvpMXFjoCaTFxY6Ag01QzjG9ITVDOMb0hb6RFxY6As6RFxY6Ag5tqGHMHtv4wuq10iPbEYv4guux4Cgw1qyt47byIOUg2R8Z+1c5HAWvvm3Su042TvKP2lejoUbfCFHfP8Ji9ZB49RZpy3mxJ2zcXK7RUQc24Z8Y5WVs848A2vDdWTj1HwelFhbVDt76MqcaDPm7B/mcXsI1DX54eGucIicogFoaL3AynOIzC+25x+tZcGCTIDc5sCy7iT05wpnoUaP0ne6wvqutuf4agdi6uAOiy9s+qmZ/8ATsQQ+WlyRcMyANvO8+K+UM1lwjIcC4G4G2c9ulX5o/8AmzCGb+xb/jiUA0HADQ5hQAADKn3v8LAggMbg5pc03A21mnOXcszgbanugIBuAsK2AAtNvDkjV6mJiMChrgAAMrat9CUFXVJEdsvNfautZXhoBdmvtXU/x/gGoguBmp5iM21sxnX2Y62gx0ALQRkzZiB3kCorlkBIBAzHazHP/Jcg8F2SDnG8v0RoRb3Pwdm2qSHe/wAOxVroDaP0iqTYX0yv3vpioIAJBlZN8/BvrLXguyL7Lg3+hWDoYYP0mlNhfTqu5sM+xeLJgZg/St5sL6dPnsOIcggcsRaMp2YcOdcmPBblD4vDvdKvHGsB7jT5hbTo94craoxgFoGhasAAA+Ebw/uIK3gGWLtzgb6xOQwgPNidpWtibYBg6uAAA052aw5PGvKx5sBrILtGaA2zDN76VRXksgbbKNr8OZZkkDbZRtfavmVg4+2gzwXA3Ca2YZjltzhYx9NBNLcDcKgjMMx94zoIKIHHe/kVxjeHEtBuRthfp6kGyhzDcTvDhiVNYnWj3XlsBnp6i/h+EQKCF0dS4PLY5C1xzGxtv3z/AFhfZNhKoa0l1Q+20bvPit4lKtBDR+kchsL6pr7m2fbmUzxptHuNPmHyhm8OWBUUgHjJyr5uFBKLZV8ysWBjf0TeLZtOP9kctbm8S3wRG39F6nYjdH7w46JQV1EMoXaQQtZHBps4i6uPFJG33LfsR8sG8O+p1F8a7R7tw7EbnSWzDN7/ACoII94BsXAeM2+1dtJNr5lN8fbW6oh2I+TSkZht5e2rgiYNNi2I3J+8O+gQfmKNwcbBwzeFYbK0mwcFYGJaNvuhPsRuJvmGf31i54p2N92Z9iNxqd4Z/hMKogkbg42BF1tKMkXJFlOsWrB+kNTsR/63eHKW2Umxuxt9yW7EfKm7w4ZkFOZYtlXzcK3iGULtIIVhOaP0R+KN0bvDl4zL38U0bfck7EfKjvDjIlBTkjwDklwusPkANic6nuM1o936fYj/ANFbMOUvWMbDB7swHJG401sw5RMggbpADYuFyu5hO2pzjpYNX05yRuLd4benPzq3ZWDKl2I3Ju8OGZB+Y45A69jeyzC4ONmkXU8xBsbp8uxGeniJzDPs9tccVEY92pdiM8dVfMM/v8aohc2xF3EALR0gAyr5lceNqJvuUNiPlQ3h30yjuEo2nQrAMkbq0bQ2tUSiyCvtNFsrKFl3gySL5zwWcB03BupsYx+iXxRu1tobWrrWUpxTRtOCIti35Q/eHKSoKgncwZrG5sBsgc9/A0ZlqrjxwQt9z2kNaDqmLOGgH4sm+qcVC6LpG3MiDNWPfHj++71ivR0IDujR+cxfavgrx79Jzj/XK9HQcO6VH5zH9pQTPHtuFJ5w72anGgwdzsH+ZQ+xiUIx77jR+cP9mpzoNHc/B/mUPsYlEVVoNH6yyedVx/lULpH+1h85H3dq00EZ9EcvnNd/8hb02fRafOfspwgsTGB82YQ8n+nAoFoUH6uYT8Lpvu8IU8xhHuZhDxD1KdQXQxm0NYQ8c3soQg00D/MOFfFP90avXxMD4BW+X/RXkaCPmDCv+o+6MXs4mPkFZzn9IIrxsfvymHzeX119mOsbGh8mb1adfHj8PwqAf4eT2i+rHc75CP7s56BT9qCxNDDbUVAOCli9gwKsdAX7Q1POV/tyrR0Oj4LRD/Cx+xjVXaAP2gqfLr/boN9Cn7Szc9V/Y9MBj9an89P7FyxoRN9Ek/O1n8ssLbAH7Uyc9Ueyegl2Nf5mm56P721RnAYvoXq/8/7WKTY1/mabn2fe2qM4ENtC1Uef9ZiI+3E783V3PO+7xrzMeAvWwDhhPtSvUxOfN1dz7vu8S8vHefh0HMf1XINce4+EQcxL67Vrj5Gel5io/oLOPg/CIOYlP+9qxj6OypeYqP6CKt+l+NFzJ+2JUzie+d5vN6j7xArnpvjxc0ftiVL4nDfC03m9R94gQdNA7baI5R9PXHpMtvtUyxpjuNN5w0/+YFDdAzr6JJSePrh0OlA+wKZ40z3Gn84aP/MAREUgB/RN/PE/UK1pXTA4/Vep8t/to1xheRoTefprdNa0Lrgc/qvU+W/20aK97FIO5bvPPxU6iuNj58h5uk9vKpVijPct3nn4oFFcbPz5DzdJ94lRGcfo+EQebyj/AHhXFFusXNP9aBU7j9daog83lP8AvCuOLdYuaf60CKqDEv8AONR4IiP+Vq44qPnqo5qp+9QrriXd3RqOaPtmrlinPduo5qq+9QoN8Wn7Q1XjrfvLVJ8bo7kjzlvrSqMYtP2iqvHW/eWqT43z3IHnTfXlREfLf1R/zGn6tXgr38U3zSfOj7SJeC536o3HftGfz5oP/a97FIe5B86PtIkEYxo/P9N4qL7y9Mbg7r05+ip/5VEqY0/n+m8VF95kTG8e61PzUH3iVB0x1D4dTc032z1bzxspOaZ9syqHHb8tpuaHtnq3z8eTmmfbMiqdxC/KJfN4vXXHFV89yj6OrH/PGuuIU/CJfN4vXC5YrPnyXyav27ERL8bA7lf6r8cyjdb+ykXOt+9SKS42Pmo+df1JlGqo/qpHzo+9yBFc2/skeeH39SnFH80RecP+8KLxfsk7nh/7gFJ8UR7kR+cv+8BEd8cI7nDziL8apZXZjjHc3/UQ/iVKIPopY7j6+xZX04Miu0+V/wBBFVfNhIe/y87J67l6Ggsd0qPzln/a+HCo+ETc9L7Ry9DQQO6dH5w37HILExx4CmqYqUQQvkLZnuIY3KI2Ga43to9CmGhqldHSUccjS17KWNjmnba5scTXA+EEEL1ZfjM8v8D1lw2bfE77WqMqj0H6GqqLDss0lPI2N0tW/LLbMs8yhhDr575Qst6bQ3UjRKanU8mk6oc8yZOwyTA5odlX74AfWrY/efwfiWzRsneJv4kVGNGtA+bB9dFEwve8tDWtFydhTk2HiBUT0O6Hahuh+sp3QSCV7pgyMts912xtuBfha7oVn0w2cvOD2US6U21/G/13IiqdB+h2oZgLCET4Htkl08xsc2znh1LGxpA8LgR9S9LFVgaamoaptRC+MukLmh4ySW6U0XA4L3H1KfQbgOb/AArerHvTvIP2Iuqrxz6HamoqYZKenklDYSwljbjKdIbNJvm2x0r6ccGh+oqDR6ngfLkCYOyBlZJcISARffyHdCsys2v44/aMWZRnZ5f4Hoa83BFOWQ0rHizm04a4HbBbHGCOlV3oH0OVMWHKiaankZG41ha9ws05c4LLG+e4N1akm6s8mT8C2I98HkH1moiqtCuh2pjw/PNJTvbEX1LhIQMkiRz9LIN891tgHQ9Ut0Ry1LqeQQ6dOdMI2FnRuyTe+/lDpVosHvrvIj9aVZhGyk8sezjRdRLGLgyWowVNFBG6R5maQ1ouSG1Qc4geAAn6l4GB8A1A0N1FOYHiZ4mLYyLPcC5pBAvvgEqzKL4v+ZL7V61h3EeR/wBIiv8AFdgeamwdVtqInxl8r3tDxYlukRjKtwXBH1Lz8b+h+pqKyGSCnkkaIgwlrbgOMpzE3zbY6VZlX8mfzR9Vd6za/jj9o1BVWOjQ9U1M8DqeCSUaVIzYNvsi7KAOfNmCY6NDlTUuptTQSS5MM7TkNvYu0rJB4L2PQrTqRso+c/A9bP8Ajt/i+wIuuMTLSRg70RHQY1VOKrQ1U0+FJZJ6eSNhglGU9thd88TmgG+e4a4/Urafurebf6zFlo98d5DPWlRFTaDdDlTHh6aeSnkbFp9Ycst2NpHPcw5XhDmn61KsYWDZajBM0UEbpHmoBDWi5IbWZTiB4ACfqUup/jSeWPZRrGDhsDzs3tnoKui0O1J0MOphBJp5lyhFk7OwrGvvk370ErfBOAqgaGp4DA8Suc97YyNkWmSN4IHiBP1K0KX4g+v7SuMXyYcyPURUOxbYJmpsGmOoidG81QdkuFjkl8ABt9RUdxlaG6mfDEM0VPI+MMpm5bW3bdk0jnAnesCD9atfCHxf8yL2rFtUbbPLH2FEVPjq0NVNVPCaanklAgkbdjbjKLrhpz5sytFjLTRc1J60C7yfGZ4z6pXOTd2c1L60KCrsU2h2pp6+d9RBJG0w5i9tgSZQQAd/M09C54stDdTDheolmp5I4zHUNy3Ns0ufPC9oBvnu258QVsN3R3kR+tKsQfGk8sezjRdVZoB0NVMOHKmokgkbE41gD3Ns05dQ1zLG+e4BK97GXgqWpwYIqeN0j9UB2S0XNg+W5t4LhTin2j5bvWK0oPijyn+0ciKvbofn/RY0+kP07KDtLts7asEuVk+RsrcC9rFvgiWmwWYp43Rv1RlZLxY2MkVjb6ipi35MOZ/AumEfiHyme0agqvGPocqZsNU88VPI+JopAXtbdoLKh7nXO9YEH61jGnodqZ8J08kMEj2aXE3La24ymyyvLSd7Y5/rVsVO95bftXOpGzi5w+ylQVfjd0PVFTV05p4JJAIs5Y3KF2yk2J3szgrOLPfJB9Gz7Zl1dujfIf60awzdX+RH60qCqMS+h2ppqiU1NPJENIjbd7ckZQcCQDv5lpi50N1MOGJppqeRkdqoZbm2bd8rHssd+7c6tuP4z/4fsWIRsn+X+BiLqGYx8GS1GDDHBE6R+qSclgyjYSy3NvBdR+owDUHQwyAQSGXLD9LydmG6qe++T5Jv4laVF8X/ADJfavXOLcBzX4ENVjHoeqBoYdT6RJp2mB2lZOzydWtkvk+Rd3iUgxaYKlpsGMinjdG8VBOS4ZLrOnaQbeFTGTcv4P8ApZq9oc5H7RiCF45B3M/1EPrFUpZXbjjHco8/B7QD/tUkqr2sBRXjd5Z9VqLtocHvTvLPqtREeXhhhFTOCLWnmH/I5d9DNfHT11NPO7JjjlDnusXZIyXC9mgk5yNoK+dEOgyjrXCSeKzxmy2HIc4bwcR8YePaXivxTYOcLFsxHOuG14kNbSYzsFXYRWE7K5tBU5ti4X3PwhZdjPwVlD4W7adn1PU/3fo1oMU2DR/Yl65yzrTYO72brXKAcZ2C9Mvqt1skC+p6m22c25rLMZ+C8p3wt203Pqepz7f0fhWutNg7vZutKxrS4O72brSgzDjPwWHPvVuzvBHwepzjIY2+58IK3psZ2C7Z6tw2Tjnp6nfe4j93wFc9aXB3ezdaU1pcHd7N1p7EI1ixnYL0kN1U/K0u1tT1O3k2tufCulTjOwWY3AVbiSNrU9Tf2a11pMHd7N1p7E1pcHd7N1pQjNVjQwWW5qpx2bD8nqdoPa4/u+ALMmNHBd2Wqn5nXPwepzbFwvufCQsa0uDe8l61ya0uDu9l61ypGJMZ+C9MYdVPsGvBOp6nNfJt+78BWTjRwXl31U+2SRfU9TvkfRprTYO7ybrXJrS4O72brSoRhuNHBemOOqn2LWAHU1TnILyf3fhCzDjRwXd96p4u4EfB6nOMhgvufCD0JrS4O72brSmtLg3vZutcqRijxn4LDSDVOGzkPyep2jI5wO58BBWsWNDBelAGqffItbU9Rt2txa31pcHd7N1rljWlwd3s3WuQjSpxm4LMDmiqeXGOwGp6i9y21viLpVY0cFkZqp52TD8nqdoPaSdz4AU1pcHd7N1p7FjWlwdwTdaexCFTjPwWSwiqcbPufg9TmGS8X3PhIWz8aGC8pp1U62yudT1Oba+jWutLg7gm609ia0uDuCbrT2IRk4zcFmUHVbrZDhfU9Ra5c0gbnt5itm4zcF6Y46rdbJYL6nqc5Bfcbn4R0rTWlwdwTdaexNaXB3BN1p7EIzBjNwWHSXq3C7wR8Hqc40tgvufCCPqShxm4LDSHVbh75Ic9PU7TpHOB3PfBCxrS4O4JutPYmtLg7gm609iEZpsZ+CwwXq3A582p6m+2fo1yjxm4LEAbqp2VpQbbU9Te+Ta258K6a0uDuCbrT2JrS4O4JutPYoQrcZ2Cy3Y1bicuM21PU7TZGuJzx7wBW1RjOwXsbVbjswTanqcwsc+5rXWlwdwTdaexNaXB3BN1p7EI2kxn4LymWq3bZv8AB6nNsT9GtH4zcF6c06qdYRyAnU9TYFzoiBuf913Qs60uDuCbrT2JrS4O4JutPYqMtxnYL0xx1W62QwA6nqc5BeSNz8I6ViHGdgsOkvVuF3Ag6nqc4yGji+EFNaXB3ezdaexNaXB3ezdaexCNqfGdgvPercNk7bp6nOCbg7msUWMzBYZnq3A5TzY09TvvcR+74CFjWlwdwTdaexNaXB3BN1p7EI0bjLwZpGTqp2VpVsnU9Te+Ra252vdb1uMvBZZmq3E3abanqb5ntJ/d8ATWlwd3s3WnsTWlwdwTdaexCN6jGZgs2tWE7Np+T1O1fOdzWs+MrBZdGRWE2eSfeKnMNLe2+58JHSsa0uDuCbrT2JrS4O4JutPYhG7sZmC8tp1YbZLhfU9TmuWEfu/AVhuMvBemOOrDYsYL6RU7YMhI3PwhY1psHcE3WnsTWmwdwTdaexCNmYy8F5bvhh/s59Iqc+Y/RpFjMwXlPvWEXdce8VOfYMF9z4QVrrTYO4JutPYmtNg7gm609iEZpMZeCwM9YRs5DuFRtGRzgdz4CFpHjKwXpIaaw30u1tIqL3ybW3Nba02DuCbrT2LU4pcH/T9b/wDlCNnYzMF6X8sN8na0iovtbW5pVYzMFEC1bfZsO41G0HtJO58AK01o8H99P1g/KtTiioOMqOsZ+RQjwcZOjegq6A09NVaZK6aFwbpcrczJA5xu9oGYA76rFXQcTlBe+m1Nx/fj/wDrXRmKOiBBM1SRwF8Vj4M0YPQVTVe6EYC6F9h+8PqMRXtgzBkNPEIoImxsG00DfO2Sdsk75Ocog+xEREEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREH//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTExEWFREWFxgVGRcVFRgYFhcWFhUWFhUYFxgeHyogGBslGxUWITEjJiorLi4uGB8zODMtNygtLisBCgoKDg0OFw8PFSsZFR0rLSstKystLS03Nzc3KystNystLSsrKy0tKy0rLSstNys3LS0rKysrKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQEDCAL/xABOEAACAQMCAgYFBAwMBQUAAAABAgMABBESIQUxBgcTIkFRMmFxgZEUI0KhFzRSYnJ0krGywdHSFRYkNkNTVHOCk6KzJSYzNcJERYOj4f/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABgRAQEBAQEAAAAAAAAAAAAAAAABEWEh/9oADAMBAAIRAxEAPwC8aUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUrjNBzSlKBSlKBSlKBSlKBSlfOsZxkZ8s70H1SlKBSlKBSlKBSlKBSlKBSlKBSlKD5ZwCAfHYfDNfVY9z6Uf4R/RNZFBwzYGait51gWcZIy5I29Ar+lipXXyyA8wD7aCA3nWhAFOhV1eBeRQB6zjeq/t+kjpfm9+WoWJPcMvzJymnGjPLG/qIzV9Naxnmin2qKiacU4ab82vzPbaQujsx/1MkkDu4LYqy8GDY9adq4wQurx0SKw93jW5senNrKQFEuTttEzbn8EGpBFaRr6MaL7FA/VXcBQc0pSoFKUoMLinFoLcBppAgOcZ8cc8VH7nrDsV5SFvZgfnIqWMAeYr47BPuF+AoIDe9ZsQU9mqA/dPKuB6yB+2oFb8bVL1r75XH2rE5zING4Ckac4AwBtV8SWkZBBjUg+BUYNQ2TpJwmO6kjZ4VMYIYGPCq6FteTpwD3a1LwY1l1nxMO8iMfExyAj4Y2+NbW26wLZuayD2IW/NvUi4c8LxrJCFMbqGVlAAKkZBFZeKgw+GcRjnXXHq05x3kZDn2MBmsylKgUpSgUpSgUpSgUpSgUr5ZwOZA9prDn4xboCWnjGPv1z8M5NBzxK4WPS7HCK2WJ5AEMMmvnhXGILkM0EqyKp0krnAPlnkag3SXp6nbQrFC0kOsdoxyvdDD0VwdexY4OOQHjUt4Nx60lQdk6J942I2H+E4+qrg3dK+EkB5EH2GvrNQc1V1x1ewz8Xnd5JOy7NJsI2li8hYY1gZABUnb1VaNVDxTp7dWvEpdVsrQlzED6LMkIJ2YnA3fmRigtbh9osMaRKWKooUF2LMQB9JjuT6zWRUB4X1pW0kep4ZlfJGiNHm28CWVcDNdq9ZcWo/wAju9O2G7LntvtnamCc0qIQ9Y9j/SdtD65oJEHxxUj4bxSC4TtIJklQ/SRgw9+ORoMylKweKcXgtl1zzJEvm7AZ9nn7qDOpULn6zLIHESzz+uKB2X8ogCsYdZq5/wC33enGx0pnPjsW5UwT2qxfq/t5eMTtKNcLxGbsyTvJKzK3LwGSR5EjyrdR9ZNr/SQXUQ83gbHvIzUd4n1oW8V+GjhM0TRpF2isR6T6j3dOcrnlVwWdw+zSGJIo10xxqEVfJVGAKyK0HRjpXDfGYRJIBCwQl106srnIB3HvANb+oFKVicR4lDbprmlSJMhdUjBVyeQyds7UGXSuq2uUkUPG6ujDIZWDKR5gjYiu2gUpSgUpSgVrOPcIFymntZYiM4aJ2Tcj6WPSFbOlBVPF+rC7O8XEGdvKVnHwOT+aojxHojxSDOpZSPukOsf6T+qvQlcGro8sTXEykgzOGHME7j2is7htrfz47ATyDzVCV/K5fXU16yrSRbpm+SwypqEnaMdwrIV0yZ3wNLN3R4D2VLuCdOuHRW0SPdZZI1ViIpyuVGDglOWaohPBugfGXILT/J18Sz973KufrIqwejfRm6gYNPxGWYDknJG5+kDk+XIig6yeFf2xf8uX9yuxesPhZIHyxBnzVwN/WVwBU9EmLYG+wqmbi6tJb+Z7nIJfMSy/9PBG554J29lW5xG2WeF49XdkRlyN9mUjI8+ea8w3F7Lb4t5CJUjZ1weR0uyjB5r6OceukF42qoR3NJXw04x9VZCw+r6qo2DiNvnPYsgOfRY7Hw5Fd/2nnXal9COc0zDyzIMfCTetM4uq6aNQe0KhfvyAPrqH2/F7SC/jksyNWT24jOmEpyyx5ZGSagV1d22QY4WZhnPatlc4wNsk8/XWx6N8Gm4hKbdMImAWKjCIurcnzOBgZ5/Gosj0WJ10a9Q0Y1asjGnGc55YxVL33HbR715rxCSdoWPzkSoMjAA2z68Vbv8ABSfJvk2T2fZdjnbOnRoz5Zrz50r6PXPDHWNiWjwdMmD2bgsceoN6qkVZtrxyzYdy4ix5agPqNdr8Rtf6+L8tf21TkPGMHEkMbDH0QE5ZxjY4Fcz8Uh2xbf61/OIxWkxad50msY/SuUPqXvH4CorNfQT3EU8UIjiikSR5ZBoRwjq26jnyPLfeov8Aw67FRHFHGANPdUkncZJycHYY5VncMHyqaGKVyO1kjiGAMgM6jYcsYPjQx6Jt5YdHaqVCSAPq2XVkbEn2Y51rb3pfZRc5wx8kyx+ratLL1aW7Y1XN0wAAAMkZwBsAPm9hXK9Wdn4yXB/+UD8yisK5uOsKLfsoXY+BfCj3gEnFQXpFcz3n2xKGXVqVNICKcYGB54J3OTVhR9XXDxzjkb8KeU/VqxUe6YWvBLHEcsCJKwDg9kznQHUNk4OPZ41qWDRcG6RNZAKt0qxr9BmXRjyAPL3YrewdZjP6Bik/u1d/0SalvRt+G3CdpaJbsoODojUFSRnDDGVOPA1v1UDkMD1VNEDg6Z3r+jYSt7IZF+t8Ctva8Z4g/wD7dp9ckyL9QLGpPSoMfVL9yn5R/ZSsilApSlAoarDrA6b3lndiKEx9nqjHeTUcMmpt9Qqz6CEdY8BkVUUZZ1dQPNjHIFHxxVGSWjLKI5D2ILaSXU9w5IOoeWRir/6WH+UWo+/B+Gr9tQ7re6J4zeRJlWI7YD6JxgSAeR2B9eD4mtSiASdGYjkfwna/lY+vO1R1LQFnQt315BQXDBc6tJXnsMjwIr4nTScEV8wqSwC7NnIOoLy5bnGDVgunqj6YgKLC4kzpUtBK+QHjBJMZLeK4OPUpH0aqriN3FJctI2owtI7EJgOUZ2YYLbA7jnWqkkc7FicMW9InvHmff51s+jvB5L24W3jKiSQ4BckKMKzEnAJ5KfCgmiWXR6VRi6ntTgbSYOPDnggn31GXtrL5YIhcE2evBuNvQ8WxjGxqzuH9TMIA7a5djj+jAUZ9pya0131WdlfIjGVuHyDAeMapFfAGmQY7oznvAEYxnFQcdHOFcCjUNcX0csmSe65Cac93bAOcc6nnDOlnBrdNEFxBGnkgxk+Z23PrNar7Dtj/AFk3xX92ufsO2P8AWTflL+7UG/8AsgcM/tkf1/srpuenPCJFKyXULoeauNSn2gjBrTfYdsP6yb8pf3afYesf6yb8pf3aeDE4hN0YlOWkgB80Zl/NyqtLSKyku5UklWG0PaiOVgSFP9CT4sD5ePnVrHqdsf6yb8pf3ajvA+qxZrm41tItkjaYmIAeQjZjgj0QQwzjfag+l4h0ftrfSgWeYIAZYo8sXII1prOlWB39W1QPo5dKl9BMzN2YnjclzltAlByx5ZA548qsziXU1GQewuWU+AkUEZ9ZXB+qoFw/ow5v47JyurtdDlWOCEYlyDgHOlTjbnirB6SU5GRyrmuqGNUUKowigADwAAwPqFVT0m6ZX38KR29rMBbuY1GIkIbWdLkOQT3cNgjb21kWXxLiQTuIvaTkErGD8C5+gvrP11BoOrR7qaS44ncmV5BjsYiVjRQQVVWJzjbOBjcnOanlhZRw91fTbdmY5dz4sSdzz9lZmKDUdHejdvYh1t00I7ByuSQDpC7E7425e3zrcUpQKUpQKUpQK4Nc1waDz51q8S7TiEwXSVjaMKRuCViGQTy2LEe6rGsetjhzL847xvtkGJ2GSN8FQciq361uG9jxCYqAqSGNlVdgC0ZLkjzLIx99T7h/VBZqvzskjucZwQq5xvgY8/GqOjjPTOzuJopYJS8cJVpCY3XSuWLHDAE93UcDPKt1L1mcHdSrXQKsCCDFLgg7EEaKg/SPgUVhO8MNvJJHIiamY5xkSA4xjwfxzyrecH6srGZWLR3EWG0gNIMkYBzjTtz5b0FbdJLfhiyL8ku5JY2Ylsrp7Nd+6pcAuR6x7611lw8SKzrqZNRUadOrY+IPtH11dX2IrD7qb8sfsqO8d6CQ28miKaYIcfSAOSrnZgPvP9Rq6IHadHnkbSqtnON2jG+3r35it9w3g8/DLiK50rIUJ+bWVCSSrLg6SSNm8vCtp0ZtGimPfJVhGyjVy9MHbkCSuT51L+tG1QWwKoqv3jqCgHZT486qI6eueQf+g/8Atb9ytpwnrMubhS0dgmkHB1XKpv7GUZqie1bSO8fjVr9U0Stw+5LorHL7sATsNvhUkWpDJ1l3CjP8H5G3oTq2M8gQFyDXbw/rLeQqDYsqsQM9quQMgMSuM7Zz6/Cq+6ZuUVWjHZhmLHT3dygK7jnjOxrb9Hr9I44RIuWeONsFsF2aXGr75gPHypgu5a5rUp0ks8D+VwD1dsm3119fxksv7Zb/AOdH+2sjaVEOl/S2azkCR2nbKVBJEoDDJI9HBONhv663X8ZbL+22/wDnx/vVUPW5xHtLtGhuBJD2YA7KQMobLZBKnY8jiqJvY9M72VGdbBAFGTqnweWcejzqtjxiePiPy35MdXaO4jLYDFiVwpxk7uPCtZw3irKjAzuCRy7Vh9WretRPMzZJJZvDJJ2BJxk+vT8K1gt+TpJxC5QSNYp2HPsjKylj5v3MsPVsKjnFr27mvYL426R9gFAjEvcIjLsMnTlfS+qoSeJyrHgzyeodq/wxqrqtnkdUJkfJJ21MfRK42J9f1Uwei7C/Ms1q7BVaS3dyEYOvpR8mHpDepHXl8cS4gzhhd3IbBVcPNqCZ3C43xy2Hqr0rwgMIItZJfs01Ft21aRnPrzWaMulKVApSlApSlApSlBRXXUf5Z/hi/Qlq9Kovrs+3P8Mf6E1XoatED6cxKLmEnPzjIpwd13dAR4fTPOp4owMVCumkWq7tR9+p/JYt+qptUCqs6x+lMUF0I2SQ6QpYgLjdH06cnf0/Vyq06iHTDq+tuIuJHeSOQLpzHpwQOWoFTkj2ikFaWHSiAOraZNIVRyXOQXztq+/rddN+nlrcwhESYEBvSVAO8pA5Oa3dh1aJbx6VWG5OrOqdGDBfIFW394qAcT4A7XjK0IiiMjx6ImVzkKSAgJ3YAhses1rUQY2baQNvrqedAuksNnay28qyGSQtgoqle9yySwP1VM+h3R6wkjMM1oWliIUvImlnVmwjMAefnjbb11IP4m8M16FtIy43ONXd8s701VZDpTAHUlJCFGMFVPiufpeWawuI9ILeW5jkGsLGMkaBnBkB2GfAA1Ytr0IEsbmTh9rBKchPnJJsHwZ8ac+wGsWw6pkWZJZZUIDAsiRYVwDupyeR5U1MYEXU1G6hxdvhgG3iXO++/er6+wpH/bG/yl/eq2EAAAGwGw91fVZ1VSfYSj/tZ/yh+2vpOpVByvGHsjA/8qtmlNFKcW6nblQTb3KScu6+pCfPB3H5qhXAOByS3yWjd1+1VHwwOkK3zhBzgkAN769F8b+W935J2Hjq7fX7tOkj6681v2/ysmI4uO2Y5iBLB9bajGBljvqxz8KsHpIzWqTR2pC9syFlUpklEwCS2MVSnFeIRHi3a40xrcbjAyAjorbD8E198fl4rEsdzJJcAKvZiZlVSFkK5XOA2+keGajFrIzXEbA6nLqQWIOWLg5JHgW/Oao9C217HPdRmHvLHHJqYKQoLlNIBI3J0nb1VIRWBwUXHZA3JjMx3IiB0IPBQSctjzPPyFZ9ZClKUClKUClKUClKUFE9df27/gj/AEZavU1RPXZ9u/4I/wBGarP6b8f+TxMqMe1IX0QCw1MFAA+6bfFWjV9K+JRG6gZZAwQ94r3sEasjbx2O1TW1u0lUPG6uh5MpBG2x3FUx0p4gtncxQ9hk6Ukf5xly0urOQOWAxG1TWxduH3LRk4tHwVXHo6jswPq3B9lME5pXANc1AqleJcUli4xLHFGsrNMHRHJC9oigg5AOMrqXOPKrqqhekN92HHWm0lxHNr0rzOIxsKsFgcN4+HuJ5I42MjLEqo2x1nmDzIAJ548KmdtAFycYZtz7fbVd9G7v/ibabXRDL3lLahIjBCclfXqI51ZQpRzVYdaXWC9q3yW1IEuMyScymQNKoOWog5z4bee1n15V6SzNJeXDOcsZ5c58D2jbe7GPdSDHuOLXDsWaeVmO+Wlcn45qYdB+sm4tZFS4kaa2JwwkYs8YP0kY7kD7k+HLFQqOHV4gb43PjXQwwao9dwyBlDKQVIBBHIgjIIr7qNdW7seGWurmIwo/BUlV+oCpLWQqj+ikS/xgk7owJ7nGw2w84GPLlV4VSPRA/wDH5f7+6/3J6sFw8U4XDcx9nNGJI9StpPLUp1KfcapTi0CDjoUKoX5QuwAx6SHlV71RfF/+/j8YT9JaQXrSgpUClKUClKUClKUClK4NBRPXX9vD8CP9GWpt0e4Ubq7+UzBfmzqcDk0+CFUnxEan4moL1x3CvfZU5AWMEjlkCXOD488e3NWTYjituoQW1rIg5aJXQn1nUDvWqK86d9DZzfsIhqWaRpQXkXPzh7w8NKg7Ab++rRbo2FsorcFmaFAqliCzYG4YgAHP6hUX4vxG5e5jaW37GRcBU70moamwdS45kActs1MLe6vXUEwRxNvsz6sbny+NQYnQ/iuoGBz30zpzzKjwPrH5qk9V9xnh91bTrflotKlQyKhGdWVZieWTkD4GprwviCTxiSM5B5jxU+Kt5GlGZVH3v85F/GV/21q8Ko7iRx0jU4z/AChTjz+bWkFjcMgA4jOcDVgMT4nOQo9w2+FSsVXHAeLzScQyyGPtMBgykEaWfUu/kMevarGFSga8/dcPABbXplT0LjMpH3L5w/xPe95r0FVQdfa/ax9Tj4FD+urBU0I15GcaQX9uMbVlcC4ebu5jhBwZZAuryyck0sbLuu7HC9k5GMEnBUEEeFbfqxUHidt6nz/pNUejuG2SQRRwoMJGiovsUADPr2rJrgVzWQqkuhf/AH6X+9uf9yartqkeg5zx2X+8uf05P21YLtqiuK/zgH4yn51q9qoniZ/5hH4yn5xSC9qUFKgUpSgUpSgUpSgVquknFFt4WYsF2O55KAMs3uH6q2bsACTsBuag1/ZNxK5VG+1Y2DyD7oKcpH7CRk0FRdMpHeRZHTR2irIi/SEbLJoLes4Le+r76ccQkt7C4liOJVTCEYyHchExnb0mFVF1zjF/gchHF+jJVo9ZW9lp+7uLRfjdw5q0VfxLojxntoFlutc0+dLiZyI9AU4kOkY3YeiDyNWH1dtexNc2l7N2ssRjdX1agY5FOMMQCRlTzHPNbjjjhbiz72O+4545p/8AlY1ptxef7+0hb8iWUf8AlUEhu7ZJUaN11IwwQfEGq76OI/D+JSwO3zE41jy1A4WQeRIOG9YFWVUe6Z8B+VRBk2uIT2kR8yPSQ+phtQSEVR/FP5xp+Mp/tpVodE+MidDG2RNFgMCNyD6JHn5e2qz4vF/x5pTkLHKr7DnpRMj4A++qJtwmFzxOX5zupqbGkb62fGPucZG4543qbVWvCulEK300rBgkmADjcbk7j2EVYdpdJIoZGDKfH9o8KUd5rzv1oxt/CF0xbUqtGArZIGpF5DkOVeiK8/8AWRGXub517wEsUW3PX2ZyB8CKQRY8TCwhezXBUr6u9kn1nGAME1n9XqM17EEABLDGDjG/gT6q0txbOI1GNwSSPHc1tOg8zJP2ijeP5w+xWBNUenxXNddvKHVWByGAYewjIrsrIVSHQE545L/eXX+49XfVG9XW/G5fw7r/AHGqwXlVD8R/nCPxlPzir4qh7/8AnEPxlP1UgvgUpSoFKUoFKUoFKUoIr0x6RQxNHa9qqzzEAKTjukkKWP0QWGN+fKt3wfh4gjC5yx3ZvNvH3VUM/R3iN3xZbia0dYTcKcsV0rDEe5uD5Ae81dlUUJ11n+Xn+7i/NJVp9Yh/k8QG5N1a4HmROpH1iqW62bzXxC6y/ouqDJ9ELCuw8tyT762fS7p3cTxQ27KISghlJd+87KFaOQNjkTv6/jQSK8vXmfXISZASMNsVIOCuPDB2xW16D3hfiJDOzMLVh3s40iaMgAnnjX7qr8dJmmOqQyyz6dTmNIiO6BqfGBgAeOMCuvhnTdre6S4ibViJoezkAJZGcOQoT0e8Ads0HoytRxnpHa2wHazKCWCBQctqbkNI3HvqJ9MOMcWawiktrYpLKPnQnemiU+jpUjmRz5kfXWi6nuic4lkvbpXQ5KKkqkOzfSkYMM7cgfHJ98Hf0rv2hlF337aCRuzyuRISy7si7ZGASfDOCDUdl4hZfLk0yPIqSh0YnuTasMVbyJYkeWasTrY6PTX1mqQIHljlWTBIBK6HVgCds94beqq34J1W8Sco7LFDodTiVzqIDBjgIGHh4kVrRK+N8JkkmaZ4XhDfSbdVDPpIYcjnIPqxW04Jb3ECydmdZVwrBG1jkGVlGfRKMu3MezGJ28YK6SMgjBzyqoerXirW/Fbmxds6zJsPB0bIOPAFcj8mpon/AArpdbz64w6i4UH5onDtpUMdKnc89x4VQNxxlxdOGLaZ5A7rgk9phgrY5/0hzjmKsDrP6GXjXqXdkjuzgFtBAaORMAMCSNiMfA+dRq86uuKoRM1ukshyx7ORWbOPpKwG+/IZGRSDFkts7gfAb+6tTwq77G5k7IgqdSHUVGQBqbSCDnddjUjl6G8USCOf5NrZ2IMIC9ogB7rOM4wceB2yK2fRHqwvBcJJPEkUGSZNUuqRh3sgKAQMk88jAJ8cVdFn9X92ZbCBiGGF0DUCCQhKg48sAVIq6LG0SFFjjUKiDCgZ2HvrvrI4dgASeQ3qkurxIV4sZBcxuZGn0qA2e+xYcxjlV03KFkYDmVIGeWSMCql6IdWN9aXsFxJLblI2ywR5CxBRlOkGMDmfOrBb9ULen/mMfjKfqq+RXmC74s38KGbtO+Lo4bbOBMVH1bUg9Piua4XlXNQKUpQKUpQKUpQKUpQdZgU76VyeZwK4mgVgVZQynYhgCCPZXbSg1tnwG1id5I7eJJJBh2VACwPMH1V9cO4LbW+ext44ycklEVTvz3ArYUoFKUoFKUoODXSlnGrFxGoc82CgMfaeZrvpQKUpQKUpQKUpQKUpQK1zcCtScm2hznOezXOc5zy862NKDgCuaUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUWGBsbGBcYGRoZGBgbIBgbHxsdHxoeICggHSAmIB4bIjEhJSktLy4uGyAzODMtNygtLisBCgoKDg0OFxAQFy0dHR0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAMIBAwMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAACAwABBAUGB//EAEEQAQABAgUCBAQEAwYEBQUAAAERAiEAAxIxQVFhBCJxgQUykaEGE0KxUsHwFGJy0eHxI4KiwjNDU5KyBxVUc8P/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EAB8RAQEAAgIDAQEBAAAAAAAAAAABAhEhMQMSUUEyE//aAAwDAQACEQMRAD8AbRabWbLfgv6cYOtogqNqbBN3d++8YOnwxFnRaO0yyBy8r784TmZbujHeGACPcbW/zx5nYuti+m5YO8Pe3rE34tiUVCBEjO7EW4A9eN8V+Uy1aqiEWpIS3v3t/vh+U0tqLB2tVTq9PTzXn74ozZOV1h1XhbR689drTjTr0zVYj9WmWnvAzc4P4WXjAGVpiLqnHMTKx3f630ZVCjSj3jiJ67zf9t3AKzVKibEHzb3j/Lu2wqitYqY9SYi0MB/e+vvhgskTMDAkccxyx3OMbKdOm/KrsReblnpZ+/IYxpKZbqxESFyLew/TGWkQSl5AJSrYmCTcfvwXxspo1LpvaRuVRzaLsltumHU0UnOmEY3dr6gtx9E5wRjpzVAKVjg8t3mJAl9Hf0wNfpudLEpLuW6vPfGoo88m8pvJtazYbxBtOKy/DLT86u5aJIjlur3wCZi8MPN444Ld/wCnDsvKpaYkq3SPLaLu82X64ZRlk3k3syEpO0zyfbC82q9JskRVUb2+axEyG/L1iKEZObLFNZKCbSTaZmXm/tjVBusuxPr/AKVDdLYXnFWpBYgWm4322uzfdN2+Jn01MUnmhQjhCFlnuX6p6wD4ioarVVSTtYnYE7Rt/LCSYh5LiozNtwXgvY2C2GtDMAl2b0s83lvdqv14xeYxciOiJdLMxHSAnbAFn5SwTBP6rr/TaPrE4D8qkmpdkYiHboze8cXn0ddGkAWztMSTt6sRf+kCqavNDaZn054Jlhtc64oW5LEpwwwR7A8+rz2wQFMkSvUnmQjgg64rOyi41Lza0u024624n0sKRm1n5ttNUdPRbtn3uGWoq1JTqkqbzJLDAdNrfdw0pimmxdN4aS6W6W/bDfGi1K79NndBltaS8d+IxmKCktTEWILIvMzeedi2IJQBNSNUXizPpM9yF69sUbRBBMzEWJevHX/amjzVQXtO5Le8Mm0fbqYNh83lrC7F4X7xvb/fAGZJYTyv2Dn9vpis7JDTJqjc+a0R0vfr36YZTTZRS/M6W5qevbeNsJzKVqCPKkQn267E6r+uACrLNTFVShEkg8yJYup1O3E/Ms1XEb89OSZ52lt1wWRTa4MScMixA+ttuMOopTVYZ3BCktcnb7cYBVVDELJ1s7duJi4YqoKjaJvP2vaIPU2nB106pCWotCwF7PsTB2vGEoo6dphvIz0WbS9vfARpSwqdddP82friYOrJJuE9yh/7MTAaK4+aIiyzuS7zEXv9MLzEi0JINuTazdR4vuxheXmlJZhq22mzezfiOl8Hm5qnLptF4Ntnef2iOmI0YLSowg8m2wm07MSzv7GigqCQLtJtMGzuzz174z00iQoMh5WR83zX5EcNqLFBqNIxDuRB/XGCF5kM3Wq/H724f3cFn0kdb0yevA9/5vfB+IyiSS5wb7bR1vv9+iqsuSKthqgd455sR++KGFBMwE3A2X2esYOuphZOKZLWm0cJf9umBryeaujcvwpBtNtv6GZzAbRN9LbYt6P/AHYActVsrLza03N7MfXsM4eCKBJEzPK7T3n6YytbaESHVW07bSk9Rf29LM92LDcVpT6trSPvgCrSBSN0tLtT7cuL1hSolkbhN4i1uOY6e2ehp/v3kS4BwRVzB6c3xpyKFIQuQ2Y4LrI7PfvgBvq3iket2Nx2jjne82cWZZDNc1bApsEO1tp8p0+g0UUMNN9UwxY3uRe+97tr40VU/qqqkLgXGXsSn+bgjnqzTDPVSxZ2t2/6jthuXl+a9mFSlUOe1W7x2njGiqjrdXaDc2O3a/W+AgKmTZClILzO8393+eClUZNUlU+UekO8QXLTHris3Jq1EUu7tAN7cz1j/XGqrU7jJDxB0WenWN+lnA0QPzLp525e1y7/AEzgjLlZa+WqWN94qSG3UnnjoWwVOVTFohRf2YiEZ/mdXGpYiCNidQsW3n22dzfCcqinTOmKZkp4Rv1jvf6YAaaR0sAjO+wS6p/hhez9sLpSkUsTuvWwbddo4C3V9WbF2qyRHlvKSiS7cTH2woy7wMze90jrf9u2+AGupKYhgjZLyLMu0d6vfGTMlgiOnQGzMg3JUl7Y25lZ+ppZZskXY2e38+MKoTeJA27de52wCHLlUWflhpYuloYtMw2NruCcwm1lH06bxBx/09cMy0Zbjp3iUOCEeZwNUh1F6tP2Z6P9XwU/w9al7Be8FyZL3t2jnCcuSpRb9rMJtfTO8lvTAaoEqRKvTa7tabW2wOd4umiGuqnLuRXUxSWvdImH2n62RNtOStKUlJN1ZNSu7M7XxM27ZJbxuzz6xB/TfleN+O+HoynNpyq62t001UtNGVNH6qq6tidkEeNzHF8R8Y8T/aBy68vOysuk1ZdNVMVKaqylJWLeb6416Vn2j2GXUQSNTZvVDtOx6F0MDTmEOnaLFjd7we/vOMPwj47k54uXU3jVRVuNxEPTeUlMb81paXY3aaUjdYe3MPTsYw0x53jmmpGihZ50T23Z2/0tiYXnZ2VqdW/p9N6sXgrVmZS2pg4KkllFWJPTv74dRkNNg00wbLLaNpNrXn9saMvwxJJLfcHp6aVD7HYxPz7VWuTbmIn2SOvP0il0ZIsdJRmWyTPLMg+x6uoqpKqbXm3Q673uS/TCNMRmdUlFIKi3If1zg66WbTTVVdVptAzEttxmOAwF1Zm9JeAEInYDdvefphWX4gvTEVTFRzx3mxO30vZmXmApLK9JWaZVm3M8ekYqhCnSnEbbs7SzHO/e2CBzMxIldKbhJMl9+dR/U4LNVYuB+ramz0iF34+sWOqqpI00yja4e8fXhwfiPDl3SFW0+/E26+0GAlNJUTUDewxG+8xbj6bWwnKoRYDaDYg2bAR7z9jGhyt5LzwXDj+V53noYlaFKQXZQvEt729fb1xRnzKLtqbJJ0uJd7vQLxh9R5SZUZN5f5m8ffpiqF0+aNVTYar2uPCbbfvbCcp5qQ+39Ec8+tsA4imJKYhjYCHpIRD9w5wdEchKTAcjZjfq72xRlxSC/wCiQ+hKMK++Kp3ddMTPmH9qpkXy+vaMANGcIU0ixSzJARYZ/rhcVRnJNmySFrn9602pjbA0TBNpIje8lh5ZLveZgwdWUXd9hSBIkmLxzPWTpgEGZW0XJ6Ag23veem/8zCjObw2hgYEmJOXVD+2NrXSUFwmYSGH+d5h5l6YDMoFikF9IL/MnVmC8/fALook8sTTsDFo3txv/AFseqKTS+ViVmoSL8tvYu9sJ8PmMIcJFNLERIjEdDb33jBmSDFUommKm07skbMk7788kBVDpaZaXiJne08ERf73s7zOkmo2WCb2kk77P04wFDvpHRNtO4zMJeJsbBvLDgqs6kJ4FJHmfWf4TALiqmyC7MW1X2Yb+nRk2nCs6lmSlWCAtpsltiRWYYPutzK4WWBmNMskyb2+u9rLbGOquKNVVQFMzMHle7ETu3facA6nOq/Xt32pWJmqJD1vbo4x15lLTqtB5pqUJgl1SWBYtFzoGOd4/4xTlrTRTDSxfUA3L0yTtygzarHI+IeLqqSvUotpmaKv4YtDDZilaYkqhDpMLe2blHY/EpVTpo/McsqSrXTSOun9NNDVAb79SNxMcnxVGblZTlnh663OqKXN8VqqqWm5Togq0TstIDuwzjT8O+JFeTX4bMKkvVk1UMVZeaeYpK4dBW0xJEbwXx5v4j/alZg1Wfy5VE2qrvXUMz56nfG5qcMXdLz6s3Mpoqz8waaammmmpNB8shTRaljiOemCz/hhlZ+Xl111ZOY6KmokMsTyrVBVS8rDvxeOt4H4J4jxdORk6KajJmxFNaMKt7zESw2B/Svf8F+CzNya/FZjpooGkpSF0xBqnVLt5lubQ20mnnKPjlNHjCunL1U3y8yul82eavLWwU0arGxe97zj3HhPFVDVQyIu6vO3mv0sdMcnw3gMrL0flUxWfNABMoI7x1GLzeI09DIoEiOs32ZZvMzM378Tjhld10xmm7TV1Hp6cbUpiYVTXSAVIMFkJ7bk7YmMaaaas5aUuVMadN9zrEbse27N40gWgSmqG1jsER79tr4TmSgKmntpI9G/W21jDaFSAkvEcbExY2/ZtwmltDBSyXUB/90u0S8jzbbDN6r0lwlSZj7zvG2JktkKfOE7Eelo6u2GarxIqbDpLPKbcH032QlLaabk7KsEXnnffpOFKVMxVBNjdA991ft7nU0m0RuFoYPTylj6Riqa6WCY3sbNgtvaJi1xudQIlhhinmd4mbG+z9sOppg00haoLbTumzbjjjA11UwX+Y3YRm6+m5t064RVUtQSgnFyL7zyT/UWqDzGPMTPPNp2B7Xjs2w3MydRK7zs8Xl9rbRvhGa/w0opTcgiXieQebfydlDWmrY6/4SWYBLklyGeuACjLpAAjkgZ777Xjts9sX+WUjfe0HLbnrBz0mLxh+ZA6KSICq0Azf6wO3HHGCrgpGFi3LBeLdiPpgMebmKhLDEiQ6rPTb1j7Ydl1FWltULuSRIyl73n2duolEw8trBwTt62nshfAZhaYq0z0uT1WGCYvxHrgGNMqauPLIwdNnaAW/wBNsVRWiUztI2bt4bipv7+8q0raZ1WmJ3pUvc/Vu3Yw2rLqshEbUsP6hbAzttabYDNXm8A8wIk32HaYlt04MKZilpTaV2mbQqgXp+qQ415z5vksiKt7oy82A+nacBXlSzqgBDpxNm0fftgM9c2U1fNqion7Nn9rTzi6qaCms0sxNMbzDYnbnvvPXE8ZXoTzdKVJ4WJ7Mz7/AFU+IKaXfm+q/F+gTeY4euADPrSCpmmnUt4idN9vVk/1xTmlEqFoJEiwu/FO/vvjmeJ+L0RVVlhVBTvMaZJrP4qZS/yyk1G5yM/xdWeXVqpNUTaqk5C8NPUm21dr7xwv6xc5HU8f8c0VTStVUFRUvlhN4nzerFO5qGTHM8X4rXUZtbXVRPmKUpqoqhgJgB4q8rAmqqIxlcyitaCaaWqqrKnz1UrLC00jVPNQF76t5mmrLoWuoppZEs239BnaLzzbHTUxY5yZ/EeLpaJrq01UfK38xa1ghOGCSzMEp+E+Ny6tVNdVVFFQAAedmSVtTf054UcFFD4jMpLU0m3QOV6/7GO/V8DPy3LCJ+VYJrJh6Xiqne09lwuWiY7dN8Ppp8gkXghna1Pf7X+h+F+FzaYi3II8Re7/AJe7PgfiTMyiFmnyV70+aJ2SSe+0OO5T4Zq2YgtZ0mzx1tY+pjlXSOV8O/MyayrLWbXNJoktHrtD1PTGmrwgKQw93UzS8xZkSTiN7xt8Xk2dmXSxG6MzKEb7/XpVHhLKMFgmbMAyPfrvBC8S1dA/svJc3bTJJHBtF/TGmqSWzaSIiIIf6OmK/L8zTrg+qq2ep6b/AC95LNqLBKQ+YvEbkbzHSPfEFFVfFR/7T33viYr+ylV2lX1jttiYm1XRlSIbbxKxa71DeO/W8Oqy7EfMgo7xHWxFm/ZixjK0tNVJTVsuq0cMTO483bnfGrIyxphPNFw34gvbZ6xvEcFLzcrSMVOqbIQpJBeSbm3SLTggdUG9NQQfpJPSJnq4PLK4pCNw6zao67m/oxieJog3SY4lmbMxLed+s4B+TlVbLNMRf22g633m+FVh8hBEAUlUnr3t93EatOUSLUX23q2Nhjoz0MSrMNMQkb8KtNVU/ZLXs8YCs/akqqaY2YiAF2uxtZOH1wyigtRYA2ttG+1iBsxieHrqfKU7hVCyQ8SS3PaJ5tgq9TAJqnd5HsbSP2+gBTWOqIYJBdR7u1mbTztfFVMRSpMnlSaamO9+N+vXEy6aR0zM7gMruTzs7/bbBZeZNJVUqDYjoXmZbX9hxUHFVVM6qmSLbexs267YXoqpLalBtq4ONJY4lP54OgZhaW7PUGZLbgzftdthWWUtyrVqdgkV9WJSdoLu6GAvJr+UqBBhRlscdAH6u/GLzqWw0yMMS/xW2ROl944wqmhGCCmmVJm5IEtjrsAz2w7KroSQqgCZ32O/eOvHbAMyKKmKpXkNPBsdrVT+/OENYyeUaurvywTBCz31YJzFeoLx0W0ctun+ivE1QMWaYlCNpquwtoXvgDzEr+XSsFwuKWeF2PpxwqnOD5tPErFreto9eu0Y5HifjZEjRUQgrU01Qk0DTSzVeSKdPlZTjh+M8W1Vxm1FVFYQlJAfpaabk0o2mtshpxvHC1i5R1/iHxugRBzCsk83kTar5SX/AJSACU3xxvGeOq1lS/mU1k0htVT0gm4jc1ok6jC/DV1UVtFVWlKiqmvVBRmENNWpmyRdamNNUeUwfhfB5mZRVTUeVZKqn9UkwM6xDlC1LbTD11jixu0jPr/LaWkpRWoqlWsqsld0UhpYlvV5ojD/AA/w2pzJoWkmmqkqfOWmXf5W2pFYmLxjrfDvBaINKpL5mUGzFoNg4mC/To5WSVtnTVO8zJNz1tFo2xzy8nxqYfWTwvw2miaqEFZUiN37TEccxbHg/j3jzNzG/wDw6FDvHOPp5lokMVWXnioPaaQ9Rjdxg8J8IyTMcynJpubxz1BtS8tuk9cZxuua1Z8ef/CvwqrQ1JFVezzSbHPVm3T0T0tXggSmpRTh56HIPmY9cdFo0gwCEAQK8U+aL353v6YvLyOabRTbS2VJiPY2/wBluyR5L/7Tm5PiPzKKas3KzVMyklKV+Wpja6K96m2PTUZNV9UAXncLWv8Av6XmcbNQUVXBLarnvHPHSZNuKy6SBmVp2bPBcLF2Y59sS3ZIyHiqaSILTxeyl+jLC9Xm2FMjbUNMwihN5EvaOqyJ6Y1Z2Ws1IReKo24vL3ZOlo5wIFLBT1hkCV2tH0f5YjSqsqczVu0/txf9N93kNtsIy6qp1UoLb5lSKuYs2LveJsLoaTzL8t5Nhnm3WS7/ABYmStXK3t/Lv0eP3xAhNXm/KqZvJoT2cTG2miN9T3k/0/rrvi8NBVVZvFMBySlLbvceR2L2xrMhLcr6WvufW3fpJi6qJf1aYGZ6svPaf5xbGbO8Yy0nvG4atmyDBHKwxg005aQ2mUFS1rbb+3p2xky/EFRUVJIwl9QSl95mNtrx0lVOeVy0zG5FMF3vDJztva+H1UQrUO4KsxCadz+8MdndwQHha1fMgNIrUjUu1Vh8tgJln742ZuXfhVv8o/NYmT2jcOdlLXHmpBIYk+skSBG/L9U8vM1PmJp5Wn5mIYttCHu7TgCq0kW0nWbaT2iej6X6Bl2agEd101TfnTv/AL8cGCFpNotInNlmfeMDFReb0tSil5VvO91+lsBM6qPlLFX8PBSXC81e3D0ccP8AEv4hp8Pl6KaSrMrmKapAFZqqO+3c5DGj4r8Wy8jKqqrp8yRTTLNVRx6Cku9j3+XfEPGVVVOZVeupl6T/AJG0Y64Yb5rnllriO/4L4R4n4gtebmxljDVmKZY76aaKbTc45u45fxf4BV4TP/LrArAqproWEdqhsnJxccdb8J/jmnw2T+TnZH5tNNTVQkWXhGzfnidmMcr4x8czfG+IczRCwU0UzVFJsFpXd25di2O/GnHl1vhH4szspjNXNoiJq82ZTvcqb1F2Rv3tD6rw/wAZpzCispqCvbZCRnd9b3GeefEeH+DsasyQIUImP8V6eljVVf5cdvL8NVl5Tpofy8upiz+XWVEozVEwylTtVU6TTjnlhL03jlY6lXxQpq001amupaUqKcupVIagvKafKMcwA45Gf4rMaKcxmCyVCUVEtMwqJM5dQtSIWGqC83KoqKcujWtY1UNSIzYoCzcNLMU6qaIA3CjMaqqKya6macyiYn+J1bUlQy6f1S9MWYzEttKqpCpFfys03ZUjZZutD1SRYIqwdWQNP5dNNdTTHmtpK2qKqaah89CRsHmpLBUuNHg/h7GmrzUlUlEBTMX7zED18qjEY7Hh8mVnTyRTaDpMrN/tsYxl5fjUw+uf4XwRSU11pXVRTBsAFTtxbvLsEQY6vhMtqZJl9NwjaYm3PI9MV4Hwhe0353qluyPTrsHGN2dkUkUxKlNSWaQOzsb9OeMcub2310RkZQI0JDvLt9bdPXrhmVl2m6WYY8pvaL9p9O+GZVIlV2NNrkyFzeBkiNpwZRLbaaYBtDN7XRepeHjALrrUsTBAfLBZb7Nu3U4w6xcmn5Xay3gI9D/dwQVamqspi5QXmbkrFrL9bYgwgvlrFsMTeXbdnnpgKcmSKqhanz0zVF9MEddw2mdrYH+zTTVMWnTJFBQha2/yu8pJ2wzJlp8xvY/TpLW2ne/v2u382KTaVbBB2J+l7dYwCqvDRttZHl3DiOeNu22F1ZgeV4NqiEvFu7tMntg82mXUqJycWELWZLYGtb1NnaVIG0dCrvz5XfASjNmp3mNUwMkXFCeNr/thfDp1fp6334Tjr1HfEkp1Xomdju2njmZ7mGUNNLq1NiHYZeHlZO2/0KDxWX5Ii1rbUW222NjjCq2mmC7UOxTLz5jrzCbz1nGzIppopqqoi+88y7z8zMyeluMIqYaIppdPNovEpSLEW2bz9IG+GpdJMnYlN+s4mMniHL1XqJgmKgJgn9L++Jhsa3KaqaZpTtqjdhmehLz/ADxeXlTvwgckE7PV2vf7mE5ObqqQRNMtmIhKXVDDt92Og+M8VTl0NdSFJeqtmB2RLu87dQviNCIsE7jpYGILn+GJ9yemOF8Y/FmRl+XIPzaoh02yze35nPGwltx28v8AHvxDX4laBqoyDahb1Wjzpvy6dieYMcKrO4Md8fH9ccs/j0XjfxR4iufNRlj+nLpA2jmeMYc7434irfPzOvzJf2xycnMNQ1bY25tBpWmOz7f5xjtMZ8c7lW2n8Q+K/wDyK7Tvpd2XcW/XfGiv8V+Kf1UjEainzJ3lR+mPK5mdWb29j94xuq+CeLcn89ycz8qaTUkTqQEp3RUJCL4mp8Xd+j8V4yqtaq62qrvf2gtSTwQY2/Bvw6+KmurPy8vJoQqru1S7U00bqn7MTDjH4D4ZplzGOtAkl581T5aNuWf7rjs/C86kq/LYpy800rch/RW/rrB+Z8lOlzAPNio3Zng/AU5bk05M0tq/EVo5tL/EPy5YJLSeZJNF8D4fwH5c5dNJTULSl3zkwP8AFTUTGpKVLUhhOflVUMVDTVTJe0Qoglqbjag4b46nw3Ic6mmkFrIy6wJdP/lZmn+5BQr+mmj+JwsJSvDV0nmKCryLlStj9dEl6tPnikinSreTCPEZ9GSC1Ro8+VO9VFTFVCBFmZ9Mwm5ifiTNzPDVlHlMzy5lTS6mitNtW3mimpAS1MY874DwGZn1Lsc1v2A5XbGbdLOXSyPG/m1NGWNOUV6gnzFttXVC7zpNsegyfDU7UkxzEt288XYZ7dsZvg/wnRl0k3bowFyD6g27hbd9H4PJkk+WdxGqIE+79OScccrt0xmmVyNZqPLHBZX2Y2PrjZ4Xw8/Nb+EZhj+71nn1xso00sghZCGTYar/AOI3n9XfBOVVOsPNeUKfNwTU8f5bgwYaZ6Go0CMAwnmqGfNInqHf2FmaWKtcsbU3dtUxFt5bbxjR4SoV3tIkoTtBVxG177XkjAUFNKUtJYibavKxEU2PXm+GzQPzfmbWbLJ5eYjeYWGLBgLkgvdaqZXkl423/iY2xpzgpilsIxFghvbpeeLfYqKbhqKqYjbewl/SfrzviKGqdMU7z3tsxLsHQ3jjBiVsC2LXiO/V6ez7XmZVUhNoZ+oWtZhsz/PF0Oq1PYWxf+GLdn37mKjNms1ID22EqLIKcm53epNlPlptuy6oKqd3VaQ+n74dpgab3LSRbbre378RgutNlNur9X+osYKyZ2rvP6pee3lvG+xcIthWZWNNjYtTPG0bO1v9DGiujQnIm+kjezO4AgRjO59SMwcIceWZvNjfrbZwAUUzMz5SOnMx/iiOm1pmz2nyjAx9jmGWdj19rDT4db7/AMRaFITamZ+tgcHRkUWWodLCXCWD5e1rTa/O0GrLh3dy1rO/t3nGamrS1EWC0LDteV9bFt/TA5FTSXdSeWnVZ44E3d42tdjGijOh0+Zss33V2dn0T9sVAmUcV0R3pJ/c/bExmWpv+cU9tYfbvv74vEVKNNJVUUgqGl+WJJ83KXlib9px4D8U/FnxGYZZbLy7VXnXWbs8hsHWe0et+KeNqy8mqokTUUrMk+XVd7Fgtfrj51E0VVPy046+LHfLHkv4yeJem2MfOFf2hXGjQjcx2cl0047/AOFfwt4jxzmHh9M5RS1aqmn5tWkIG7pq3gtdLT6D8HeG8Jn+Az8hyqf7W63XA5jSRVS0VVDp5NJxTU84w/hfxdPhcyK40VeXP1DpibVNOqmMulvFTqzCSAqIod+HNGVlV11ZRV4iisHXUVfl0pNNWiYoZKiariG+oMOr8fXVWV5jVWI01Es1UJFVNLEqm2kppKgYtOOj8f8ADU5OeZ1/yc9qy8+Iq/LzN6qopDL1MGdzelxzPH+Gcqppq35ZYXaq+9QVCWswOzi9o4njPDOXmNC6tHyoAaUGmqk+TLKqdNRvVfjEy8nrz639nzVetWPTfC/g2Z42mjQA5dWj8yu1LQ6qoI/VRUVEF4zKCTTj6B8B/C2R4WKg15v/AKlRcf7ptT+/fGpEteQfw34jPysmusMl+WqvNYq0gaao3Jpgh03oX9c49L8A/DOV4YmgdaXza7KTMU0PylhvcQ+Yx6RpmLTDJ2cfM/xn+LfzmrIyKv8AgkldZ/5ybg/+mbf33+7810zt5n8a+Io8R4zMroZoqqKR4Ypppn0Wmz0THQ+FeDBrpApQNOz1Hp0LN4hgmHz2bVOD8N4rNptRXpO5TF7KyX4xy8mFt3HTHLT3WRRtTVCtJF4S3GzZl62MbcnwVIstmp2NvmY233Tq++OR4DxtGZTTVUEVFN9jUINO/uf4ne+PQeHPms0haBL73+js7ydMeau0TL0UnzU1RUDTH1khsTqvwGG5wFNnZNKE8BHlb33tymCycmC0gxZRZmRt0Ihn26TMpIts93mdrcbXLDviNMtNLIWIJVe02tchTfpi8mtptLLMsze8EwWD2t1Jw9oqaZUYZpEN77MX3sxxgcyiKdNFmlW9MsSwdS9xHae+ILqzjzSgG9nrs9PvzE74z1V106WIFSJsx8sSTxvvfbo5aoULo6b2bbrteKTT+8YCoRCksWdU3taHmJ2PqRCF5WYZlOk8w7oz3tUMxtLGz6xqzat43pIdr2knp1udMZPy9AUn8QkDBe8vyx2740sRDtYllb236vXv64oV4rNYi1VXJpep0FDa3GrtiZeYbtJbeAdt7U8TaUMVVWNBWLc5pb+ow8vMvfDMraWDVTf+9t+kt/LvziIKs3kBd4GE7d/fGOrKph1B5oJs2tBK3v1iZY2nGnMzdN/rFDMT16nc+2JTQDzV/DBMPMN5OvtbFGfLyuVZpq/wneZ3I3v07YdVlkabI8cIvptvgs10yRFLpkiZiZhduPo2uYX4bKqkan5qdwbJMosnJ0345BMWkTa7O1rulWLeY6XbTiPyy1RUKWLxKbHt679hmbppmlaodyZ8veRWB+nNowGVTq6fmU2KidMWiZ+baYP9WKEy9V3MaXpqpt/0/fF4pqyucuip5aqamqeZdPG3ti8B438XVtNIFQ/mVGqxxTWcEoM3nlx4jxmbVpaZQ5JY+mPcfjCqcvLtenMWpmbRUU/WfsY8T4uiZx6MP5cs+3OymKh6J++O3m+O10aWinVPzH+WOHl7nrjqeIy2isJIY27g/wA/tjcrNdX8P+NqyM7Lzad6UY4ez2dnsuO/+NfB05efRmZf/heINeW2spO0fNFmp+XTG+PL+Hy5x9HyvB5ef8GrMzMpprympoqzFpMuqSqmIvWLLF5qaiGMaZL+BNPjfB5mRm5lJVlZcGqa3y3yaqBqhiqKagJq00m1Thf4ZyqfEAV+Hqz/ABGTOW0aynINDpK66k2IKLFUlFPkePNfD63QVUNVLXTuLTVDuSXx6H8GZ54bxGWlqKnRX6VO76MVe2NzFLX0T4f8Kqp0ubmammNOXRNOVRG1p1ZjtetSQSmlx00wWbSxAw9d8cj418TyzV4c8XleH8RXRNDXpWkWNRQ1Uy7xfe8MQ3iJ28j/APUP8UXq8Hk16Qt4jNmNIn/hUpdqT5ouFt1j57/aMkYKq2IPLQFPtLP1OMI8V4WurMcqmry0z5lum7Uz+qrd7vbHqPhX4YyyzTPlmZKpljjmycBb1OF8jpMHnqvEZf6aFeNVUz/y0g/9WKyPh+fnVU2gm0mmk9Dl7/fH0Kn4PlZYRBMEWOP9GeP56szwwVWNqahm0qkHrY/9/dxzvktbmEcL4d8MMugpvVCLcu2Fi0c8O309R4PMBhAX5ZtIzadnbtjCUaq4pp8rOqli3JMbWhe3e+NeurbVPlte8sTJNt/aeZTHNuRX56VRSMO8/LvEO8W4PTrDKfFEtkIGatqQmZ6WneLdrCGsdQppl/5UhsdZGyREb8jmrVVGyBNXMQX1WY3HiftFbaGVdVqqbUvyl7WXvb1+g5nnppdOk57Bxe7+3rjLk5g1RS65B6SsVUzL82l2no4fnTBcUd42Q4I3P2qbXuFaqpqLkBFQjeOkL2uPNsaaciai5vfi9tgi9nibdN8iRqa6Y1nYsgaYuRxvu9DErzaXybclS2nfd+aZ3LfXEEqyG5IreA6Nmw8Q35LRtgsxbH8P626CXh2p+8H0w7KSRmLKtoZ99mN0vBgGlqiqSRJibkb/AHX64olJKTqKSSLolol9eJhDmLFQ1HFBpbcQRekbQ87dsKpzdVJXDdjTTvN9lSw3v05kxdRS1QgCc2P1Dazz053cESmCpNMhJsJF9JZWNyE3V64DLL8jAlUBNKFp6MdnbDKqqad7lP8Ad1JeTbgNvQ2wGZlrVquoWTZN0Bhj363tgFV5tK1aqamYBlOd1ejqj0jpgshaWxJp3nedJ/XGFZuVZCSpRqhHbedhuMx+2BrpNdMeUP1QHVYUlBvG/ScRWivKNyy7NNOq97owrHTt6Yy1+IuIIVcLLCwLLBLZnrxcwXiY/Mn9YSFIQyPut6mQ6zxJmXDEFLek3fLuINn046zbATRWy6wu2qpl35RDEweXoQdG4P6t3fh5xMB5z8S+BKsuovqKKoNpqEaeL3A/q3gMy2moJRKodnt3HH1TxKVZdW9V5pS8HKDxu+kTj5z4/wAO05lVMIMVUqRNFVxDpvHaMd/Ffxzzn6894vLKanT8rc9HD6sxq0q7QYZ4jIhvs/bB+E8HVmVU5dJLVUUh1Vgx00xt2PA5WPpXi/iH/wBzMnI/Koy6cmmZgq4CwwHFuLs2x5nP/DVfh6CqqoqjQVadqdUxvdvBt+odsbvheXXSlVLCdv5747TGVz9tK+I/CPyKylRGdL1hBe259zjGSoLl9ukY6+fS1LVUqxBP6aSUA4JV6s3nG6r4HluSZhX52mbxpiJfTTy9ntjfU5Z76F4z/wCoX5eQR4evMz4jeky2qPmWZDmI7d8fNM/NrXNzs6vVnZrNde0qQB0ppLB2xs8R4jWkDfY5xzc8c2sy6L0llCZ/iT+uO+OXkskbxdf8M+EpqpK6pvU35SIpAtJLLNse08JlTClgiS6BF778+lQ9McrwXggpKUKZkm0bhTa7MATb5uxj0Ph6wogvFMtUTNVtu+31vs48dr0SG06KZhlm6StSSnW3Tt9szUN3eGJt6bTa9u49YdHiY1FaDpL7cS82I8154OMXmUU/xAzG82WwbRZgi98YaZqWt1wWYk3ghne5w2I26MLzNe9vM/xIm8RsMaT2DfjVTmBMfNMpe7bZktAtrXe+M9WTUobS6qdvYiZVFWLb4CGm9ISt0N0dpRvL13DZxeZRWlqorbqbW1bVE2vztqndwfh6Y0tWoeZ21JcnrbcXbZcUZkunibIzaCC3ModfN7YAqXQPlYBZlsQmztaAefW+F1Zpqq8s7oWJhnh69SZj1xpQUhZpi3F13IiYJ53nbGejwmqqum4PWLkh/iizvDteMANXiNTasp2T5bF+u3mFj/PB0ZqU2q+ZSE22NpWwDb+97Hl0Ahfo6hN9lp2m8WvLgM2kTVVpSknqJzDAjssWYwBU58U28xSHAXlb02RAiYiekOJTS3y2mFkS1h5WZqG9r3bxhVWZQRpVm9X6om6Fpvbbtu4LMqVvqYVJNqYnePTbp1HAH+RTrZ1GnYLGwyBGr26O2GuWQKpCXktAiw2vPTk9stOZUok0ogoEabJINy8bWjFZeSUVVPlqcyqf1DucdovGxuXnANqoqKhB2TUoNO03d92qe2K/Mppt/EzVZbt3bab9sDXmFFTTe8qlQRF+Yv3vzMXgLVERS6EgquNrnQtHuMbTgC8RWLVUXaYJusrASXJmWTA5VUy1SMshVMbRbjyvQ39MFl5clQ7MXGzfft12mYnEryGbuoQIUQW0xsWj2nALzsqqWvedPb9XmbW5D0+68zJtqvNKKaamSmogtd2pteL7TgvDU3A81Q7IWlfM9Y3k/ierDc3O05lC/MkJHAi+5Zd7OBVmY8KBw0Vr9SZ9cVi6/DV1Or83TPBJ/PnfFYIxU1VVUwaYpZDoPmmI3uW6htjjfG/h7m0SUv5tAFPy/pgqJIPM1R01Unv0vC10tYV1wyDS7qUu7uej9OMMoy6qqIrqYt8pC0hLYBvKW6WiExqWwseJo8JRXQswg2bMm5G8zxjHkZGmoqpkaUTqIyI49V8Y+EtS5mX863phivvfZvT2ZD08/cUi/I49WGUrjlLHoj4vmZ5SZj5ZFCfNUEE9jinr1gj2Hw7wdNWSVU1AyEWjeIeZi/ub3j5tkeLopTUtJyhL9FJ+pju5X4i8Fl0xTlZ+bU28+YZR9MuavbUY63KScOfrutvifiGodJs1Eh82mppk7MSdkxwfHfEqqqXKKlpbNI79mNzttjV8d+IeIzaKKc3Lp8LkB5Msp/Lpg2Sj567FrOPN5/iX5Mkb/q/XX6BOk+71LmM3yccr688F/EPF6ZopfN+uo/SdB69Xjbfbrfh34VoddZCgk7EM912FggknDvgH4a0H5uaEwxlowWYXiHqwF+snqPA+HNy1OyaNKSy2bXkElmzjzZ57dccdD8JcCbB5r6llITeGYier3x0aKJKKnbcH5pjtJMvqS83xnJ/LqY086YYun6h3J+1u2zPzwN6oKZtLuRTf9V+y3GYxzdBeIqmAY2m0jDsnQlZk33wWYiFTdp2AhYkYm/Ke+EEhLuMlT5rRewzCczMhPAll1oQhNTYvEz1Y3pJ6X5m8A5t3dmXSRG0xMERtv0xnzsxkYZarwk2pvtF4BszZDjDSmY1SiEQ+UI24k5iLx9RMvzNJqszrSyxefqsfvEYKvS6Gk59ZJZbnIO/a5gtx0KXglZdK77r6nX3SpzJpiy7yWnixIzBFu+04yXhaapb1N4dRp1RbmzpWGInEHRy6PLJTWoXFSp2YVS+9uqnWc9fiBZzDbe8AdmdxtyykbRheTU3F1LGmmIsDMLAN43Ob84XRkj5bN1qibSxBeLDwvpgH+H8TZZLNkOGBd+vb64HxmctSXC8vWOdMiSqHobYHNlyyIFQdQtgu2YJg6Hu4ki6Snm/Xanjb/SmroGAx5J5aUUIKR0wnlYt6u3YvvjUZlr0hUkEuoNi7EEyH15nCKFq/TIN58t9YzZnyxeI3wzw2URJT5YkpqiJJk4iesxva+AlaFQ1XIvG8sEVPqWbT9noeIqsE7shMAaW59f3eMYKjSTqGisCDrFIdS4czHTcxqpr1aCoanSqqIJpGbxZeBwC6pqbkgN6etx/u1E9e7ecLy6GIrKYpUXhp70zaeveOuHZOVFhqbo3W0SHzcGnq/fApFJSlpOgKxJMkzf6sGATmUeWNLUxta/aNpZ2frfFCvldmHZRZgIgkW8MT6WxeZVFTRt+pgvyEI3nS7fQvLsnMsCWZskIwTIRG4zsb9EBPhM0UfLGibRvb7zHpba0qzs5jSl5Gmo+ZaaiF1JuCb+98LiTVTpmQagm83ZWd9Lw2cHl5NBmCTTVeki2kshdjfbbc7zAzM8MLP5lXHTp7ftisbjxdVNtBVHOrTPtLiYDkC6vlsyNNO9PNRZ4vxfrfDsmmlRWBkCq1N2xbZg689rZMmqqUVITVS3am41RC007/AF6Yd4ZdI1Tpp1EKeTcvAHyWd+h0xoMrzD9PHFvMVf4r2IeLUlr2x+I+H01U0/mFKQAkyTVADfddvTGqrxU6dHy01KttKEVaji+09VlYwzLparthBphmpvJ5tiXT1esTJdjjZn4bitg1UbA3Ztcb6i8e23OK8T4DNpA8PU5BxVTBVV5Zu0moi+3uY9BRnW1LtUWiB2tPTe88/UMrIPKgU39tUlSbbxq/rbf+l0x6R5g/CS1fmZ2d5U81QzUt5mqolNrvXrjtfB/geXlE00M/MNcFT7otv59sdCLUmmmql2fK06p8sgEqu5/mh5taMrCxNEynb9ucZuSyFZXh4U0w1XdbzvAX5JvBhuTnUFVIgVX/AEzsRtMmzs8MwYmZUyiqGj9W0qXvCM1Wekbhglp1OmnXTVzaGek7xK+tXbEU7Io80baXVtE1csL3wnVSb1U0pUyUvypy2mKW8vC9sMKzUUiU6YCl533bSkczvzbFVA2QWlG0UzdtqvPW8Tb0wCisAqJp2uS67lvMI7vHS9sMK1qKtVUhMkQ8QkTJP+e+MebWFRSHEm19NTaJB3q/2s6NT2jU1HAgPlnpteIiJ6MDsuPLqpuMExOmKduruW59XA13kFDUeY0pVBYs2F3ehGEVVpXTUxqYttARKdXj2LOHZGZVGmnSP65gKagJk4Yj0IwD6KlLbnpqsH3Nr98I/I06dMbNp5Y53Zgv0eq4ZmZkBTVeUQlFfrJZJ6XwmquqodJTrpnSW1bpG9i0XmYwFZWVo8xWqk9B8v8A02niz9MXTTMVI3C4ly6WbLLI24ubYXRmg6r6b8ELYt0tB0bR3POppC00QCqRBsekEzzt0MFMaWz3Us9N33/eOcDkuqNZBDACNVr+W6bFu3dxfhsxqIameJiakb7cbNtpPa3OsNKbF6uOtvck7wRfAJzcukq80Ddh1bSTBMXj7+uFeHz6FTalmYsWm0s29GJlvGNFZ+YfNCiFSQw/KU2heZxiqrpaSN73Fpnir6VAQlr2xA+q75anhgpZEu7lxvv13wfhIJGqYWBjzKrOk3HbpYggtMrSkk00PmEWWdmEml6x0Z5weVVUAXiEpJiqVnjnaHu+4Xo0OqrlB32bKDKu1unpcs7LINo2uamysqsJvMbz3wirxAl99QxAQgSzNyIu97xi/FI1M+am5Eu92qFek3L+W3YG59TVTYYnZldlmOno77bYmXRUS7rST24mWzxbsexURClVliEiXY79/wDK+IVMRDJOl9DS9eFP5LgEZdQ1Vc6Hg7I8osl9tzjCaszTmFSLxv1eGkd+jtB76c8aXcjeA8wVMREI3vJd+s5dcVBSkbu+/md16GwrfjABm+MyxRrrpeliP+rExqKSq/5dN+oj9NNsTA25Gp0zNyuoHkvWfti/iFpCxroI4hmSOjisTFI25tbFF2219vlMJy/ly++Yz3ul+tsXiYDbValj+B/+f+r9cBVUjTDz/wD1pP2X64rEwGv4XfMrH+N/fMwvK+TVy01S8sbS4mJipCfAH/EzKf06G3Hzpt6WwzP+c7L/APGqMTExFrT42gmmxt+22EZVS1t9y/0pxMTAY2p00POr/un95cdHwR5q/wDDPvOJiYDP4agaSQ3f/i40eHpPzK7dcTExYivDH/EzfVPaaT9rYy+J+XN/5vs2+mJiYg25x/4fq4wp5MvvpHuflU74mJgsaPD/AD0HWJ7+SrfFU3opm/n/AO4xMTAKyKlrpm/lr39P9DHQ8GTWzeJibxttiYmCOT4F+c4v9xn9j6Y3VH/C1chRDyeSnZxWJiRQVEflhaaIY58g363vg/C/PmnBTY4L1YmJgCpf+Gf/ALD9/wDV+uL+JUhIEatUxz8m/XExMVGGrOqKanU2rgu2PzKrYvxVIUV2/WntrCPSLemJiYK5ugVUFlu+riYmJiMv/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXGBgaFhcYFRgaIBcaGBgaGRgaGxgaHiggGRslHhcYIjEjJSkrLi4uGB8zODMuNygtLisBCgoKDg0OGhAQGi0lICUtLysvLy0tLisxLy8rLSstLS8tLSstLS0tLysvLS0tLzUrLS0tLS0tLS0tLS8tLTUyL//AABEIALMBGgMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgIDBAUHAQj/xABIEAACAQIEAwYDBgMGAggHAAABAgMAEQQSITEFQVEGEyJhcYEHMpFCUmKh0fAjcrEUM0OCksFj8SRzg5Oi0uHiFiU0RFOzwv/EABoBAQACAwEAAAAAAAAAAAAAAAABAgMEBgX/xAAuEQACAQIEBAUDBQEAAAAAAAAAAQIDEQQSITEFUXHRIkFhkbETgcEUMqHh8DP/2gAMAwEAAhEDEQA/AO40pSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSsHiPGMPB/fTRx+TMAT6LufaolxT4o4VLiFJJj1t3a/VvEP9NATuqZJAoJYgAbkmwHvXGsd8S8bNcRZIl/AuYj1d7r9AKjXFp8VJdpmeRhqA7ki52te9vYUB2bifbzAw6d8JG+7EM9/LMPBf1NRXi3xQlvlgw4Qn5TMTc+iCw6/aO1c5lxrogCQuCftq6rl/7SxY+hUjyrXYnjyEFZla9rEWuHNrXPQ7m4tYqfIECYY/tHjpXDSYiRctyvd6BfLKmrH1Dc623DfiZiIbCVRiEtfMR3bacvM+oFcmmxMJa8LkMB8zFje9reJwLqLj5gNtjWFFxmfNbvN7XuF1GlgdNraWpYvnsrHWsP8ZJs93EYBOqFG0Hk+YDmN77+Vdf4JxEYjDxTqpUSorgHcZhe1fJmHQzyEMyRHdb5jmN9vNvFe/sBUwwfaHG4OFu4nYFUN1uGX5fmCPtYeLw9PahVW8z6RpXy5wztvilbMJZg+5IlYg2zHVSbH33r6I7J8cTFYeJu9jebu075UYeF8ozi3LW9BZm7pSlCBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpWNjsfFCuaWRI16uwUfmaAyaVCeL/FDAw3CF5m/Ath7lrXHmoNQnivxfxL3EMaQjr87D0JFv/DQHaybanao9xXtxgIPnxCsekfj16XXQH1IrhWP7Ry4oEYieXMToxYsg/wCyFra8xatPjMM6DO1ih/xFOZT6t9n/ADAe9RdXsZFSk45krr46o65xD4vqTlw8QXf+JMTYeqRgk+zVEO1PbPiebLNK0SMfA0RAjcHbJLHowI1ysSfKoVer0HEGiuoawbdDqHvuCh+b6VYxiTEOTcsb3ve/PrXvfkkE6kdRce4On0tV1FhcgEPhmb5TkZ42/wAl88f5LVibCZfE7OU5MEaJG5WBbxH10HneouizjJOzWpt24o8tlAhjKi5yjU2tr4vUaC+9arGTs7FkkJaIHMDofmGwIsQSduguRbf1Zgq5ERVFwScupsDa5NydzuTvWBiIg177nQkaXHTSpKlpOKT953ZfXNlY2F/DcWzDkefWq48O+JdszRqVA1NwW8OUAAb2sT6tqTcVf4FhoY2JkiSQ7oZHdVUjXVEBzE+Zt/udVmkfaJlF8oFlsFPy63uTYW15k2oC7/8ADbBCCykjxW5/TXkLgjTWqYOLtEBG8Y8AAWwCkW0F9NwSD7m+9a6fEyC65ydVuQ9/uk631IJtf1rHxUshIBswAAAI5A5jr1J3PnbagM3iWNikIIUoRYFraa2vcAm1rct762tasaHE3GRSbsVFgTqRltp66fWtnhOBq8Y/jq0jAFY0VjYW+27lQm2t9hc62tWbw7Cf2Quzy924IDR2sWHQSFGUHW4sCD16AR1MNLmy63J5rrck7876n8vKpdgYWUjx908YAzMWRgQOoHhOnlWJiuKOoLRYdhGxUd/ID4Cdv+kHUdLE9alXZjg+DmKtjMQx+6p0QgbfxFJBFv5R59RKdti7wL4tzwsI3kXEKPv6N7SDc+t66v2a7bYXGABHySc430Ptyb2rTYz4d8MxMQCwoNPDLCQp/wBS6P8A5gwqDca+FWLgObCSDEINQjERyD0PyN63T0qLFsye53alcL4D8RsZgnEGLR2A+xKpSQAc1J+Yeeo866v2c7W4XGD+DIM3NG0Yex39qi4cPNam9pSlSUFKUoBSlKAUqiaZUBZ2CqNyxAA9zUS438RMDCrBJhLJY5RGC4vyu/y2v0NAtSXO4GpIHqbUVwdQQR5V82YziLTN3sriRjqS7BipO4sfkHlYV5h+JrGG8QAIIZE+3fYELodetav6nW1j33wJ5M31Ffpp73/B33i3arB4a4mxCKw3UHM3+hbt+VQzjPxfgS4ghZz1dgo9QFzE+hy1yRZypuvhtqPKsPNG5tcQyH739258m3jJ89Pc1st2PFhSzXSav89Ht/tCX8X+J+PmuFkESnlGuX/xXLg+jVG04tIX7xz3jcy/iv6k7+9610yMjZXUq3Q8/MHYjzFW3mC7kCpRjlFxdmtSQz4GCa7YVjEx/wDt5WLAeUcp1I5ANe55gVpp4mRijqUcfZYWNuo5MPMXHnVMUUjaqhA+85yD2vqfpWYOJyLaObu8RFzRgy5TqLo4uyG1vF02tvUKSbsjJKhUjHNJWXrp7czXyTBdyB/U+g51l8NabMO7/hg6FpGyL7ggk/Sq40BF4URSb/w0BLWvzlexZvKw0N76WOI7kkg3uNCDcEfzA6/Wmj0ISqQSmrrk/wCy4GRz4owpJ+xIY0bzI/wxzNbDE4WXDxrIIkSNxcSx+JSL28TkB1bl4rX5XrU1kYHHSRG8blb7gHQ+o2NR9OJleLq+TSfNJJ+6Vy28hO5vVUGIZDdTbr0PqDoayjLhpPnthnP2lF4yfOK/h9VI6mqcbwmSIBneFYzqkolDiQdUVfE3oQPK+9WaWxgU5J5k9eZSDC+4MLdUF0PrGfl/ykVQ/D5N1XvAdmjYEH1uRlPW9Yyul/CjTHrJ4U/7tdWH8xqpsKGLEgDMbsFGVfTKNLDkOVVytbMyqrCX/SP3Wj+Gv4v6ho0X55dfuQ2c+7nwL6a1hYrD5jcKVHIE5iPc863EOAOUsAAo5kgbDYX1J9Ksf2yEMix3lkJ1UgBfS4bXzNxUpc2VnUTVoxSX8+7/ABZeha4Jw3JeV8OJVOgLZrKQCSco+YDncEaW0NbHHd0Jc793Mp+wgaPlp8uxuTuToBfoMtuxnFJ4TNFGvdMQckLJmYdVUHK1hyBuazeyfEosNJZsMkjrYMsgeOaM25BybNubKD7VYxGixhxixL/AeHClv7xkYqt7Xu1iVzG2+hOvLTa8O7OYCZAZZp4pb3SayTxHoCq6nbYeetdm4L2ywUvgL902xSYBfK2b5T0sSCaxOOfDfCTEyYe+ElP2odFbn4ovlI5nLlv1oCB4ccQwSl4z38GuaTCt38dvxwPdkNtyRYdawI8TgcT4lX+zyH7eEbKG/mwshysOZyFb1seJdm+I4Fu8yGVR/jYYsGA80UZl9lI01atLieI4bF3M6Ruxv/FFoZDyuZFvG9v+IGOlAZMMmNwzZsPIMQvMwM0cpt96E6n0VXGm+999wX4tsDlmytY2IkHdMCN7uLxj0NjUMmwGIRlWCXvs7WSKYAOxOyrc+L0VlJINlrHfiSyTImNw5ULJGs+fMsiRsbEgkB4wtwcpuDfzoDtuH7Q8P4hlw0yKzSAlIplVs+UXLIRcGwBNxY6VpeK/CqK/eYKd4GGysS6+z37xfctttWDw34UPhsVBPhsUO7jlWTxqCwABDKCnhkzghT8mnWup5f3+96Ep21RzfC9qOJ8N8PEIGngH+OnisBzLDYb/ADBTU/4B2kw2MTNBKrdV2Yeq1kGo5xPsXhJX71FbDz7iWA921+rLbI/qyn1qtuRbMn+73JjSoXLxjFcPjL4tkxGHS15V8EigmwzRkkPa6i6tck7CpVg+IRyxpIjXR1VlNiLqwBBsdtDS4cGtVqjXdseMthMK8yKrMCoAa9vEwW5AIJtfa4rlfFPiJxF1AR449Ne7j8TdSC5YewANdE+KI/8Al0vk0P8A+5B/vXE616tSUZaHucNwNHEYeTmtb7/ZGHjeJSzNmmleRuruzW9LnT2rW8RkbJ4TbratzPhw3k3Xn7j7X9a1eKiK7+xGx9DWWnVU+p5+M4fVwzu9Y8+/Ij+AdmzC568/evP7VY6MSb6f86ypOGO5JQWBNiSQoJ0NrkgE7G2p8qycFwuJLFmaRtNFGRQb6gs4zH2Uc9anIk7mH9RUlT+mjMivlFzc1U3D2YXy6HmxCg+hawPtVybiWQWi7qMgE2sxZrC9g/zAk25gC1Wv7RO5FoxHm1zTNYk2vdV+aQeag1cwJK+pjMskfgIzKPsNfT+U7r7VseA4Bpcww6IJQrMIxq7BSAbSyWBNjcKNdN9LUgSysJH70kaeEKsZ5lftEa88o2uNra6UqT4X1UggqdVPIgjY6cqrki/IzrE1opJPptf7PdLoyvEM+Yh8wYGzBgQVPQg6j0NWK3C8eEgCY+MygCy4hLCZB5naVfJvM6mrWM4I4TvYWGKgvbvIlYlT92SLVom9bjbUXAqxrttu7NaDbUb1sY+JK4CzpnA2caOvo3P0OhrXTQun94BCOXefMfSMeL62qvh+HMrWihM7BS5MpCIFU2L5LgFR+I1DimXp1ZQ/a+z6oyWwga5gcTDpdVZf5gTYj8Q0PTnWMRGv95LmP3INfrK3hHtrWwwnZ84i8rtGilrMxygBiCQoUGyXtZcxVdhfpvMLwzCRfIO+kBN0kFsoFwwJICxsD9twwvbKBbMYyvmZfrU1qqav1bX2XdtEURidFjWNTvuzN/M7amvY8CoNwB9K2GKxGHUubMv3UVg2vXMbm3lr/Ma0s/FZTliRQgY5lLhVvuLhmsLaEbkVKSWxhqVJVHeT/wB0RuJ8MIgDKyoDyupYDrluPoSDVjC8TV5SuHAPIGXu9ibfbst9fzrddl+DYBntxASg6dcuoHzZfGu52vsDcVJsZ8MWRe+4ZNHioTc9y7LmHURzC1zyytbzuasULPA/hXLNZ8XJljIBAjIa/qdh6gH1rf8AEfg3AAHwUphktaz/AMWOTn4s12UnqCfIVDOF9pMRg5DGHlw0g+aCYaH2YZTf71hvoeddA4L8TENhiYzGT/iReJW88h1t5qWoCCTRY7hb3kSTDXP97ExeFzsLnbpo+v4a283aaDGIF4hhY8SFGk0XgkQeoIIv0ug8jXW8FxGDEoSjpKhFmtZhY8mQ6r6EVDO0Hwsw0p7zCMcLJuAnijJ/6u4yf5Co8jQEIfsxmF+HYtcSOWGntHKAOSk2V/8ALk9TWBge1WJwUhiYzYZx80bKSvqY3Fwv4lDXvvTjnBsbgv8A6qDNGP8AGQ5k/wC8A8JJ5yrfe3WreI7Vnu1Wdf7VAGW8c6hyqn5jFIDnVgtwCrLqw05UBP8Ag/xRUredFZRvJEwsP5kY3U+pv+Gt7xLsxw/iUS4jJYyoHSeP+G5DC6km1m32kBt0qGcZ+EKsRNgZbqRfu5Te6sNcko11Um2YHl4qnHw74LPg8EmHxLqzKWy5bkKrMWylj8xuTsNNtbXIHP8AiPwnxkciHDTRuFkV0drxtGyMCpZdQwGuq2JNvDausT8MilyNNDE7pYgsgbKeeUsLgX/2rOy22/ftXl6AWryvatzTBRdjYUBVUW7ZduMLgE/iveQi6RLYs17gEDktwfEbDQ2udDCu3/xcSO8OAKyPrml+ZF/l1tI3n8v82ork4wkmIkM+JdmZzcljdn9TyGw9BpagJY3ajGcZxKQm8cLuiLGpv4mOru1vGVXM3QZQQAdT9JQRBFVFFlUBVHQAWA+lcX+D3BQcUJyAI4kYRqB9tvDm6aKWHUlq7ZVfMs34UiM/EtL8Nn9Yj9Joz/tXDn2PpXeu2sRkwU8ai7FdB1ykNYeelcLlitetTELxI6bgUl9GS9fwjGwwuoJ10r2VLgg6338/Xz/OvcObRgnTSqFe2h8vo2g1563rXPaaurM182GKgrl7yM6tG39VI1v5ix9RetfIkY1aSdl6AIGt5yXOe2v2Rfy2qREe9YuJwYfXY9f1HP139a2aeItpI8LG8GUvHQ9uxgJioIlDJkQHZluWPXxtdweo09KwZZRiDZUYgkkyHTXX6m9XJ8AFN8gzbi4uDb+oo3FWAAEbZ+Y+z6g728jt1NbV7q6Oeccsss9LehjYiBrgzu7INPDvbqevnzrNTFYaFfCVNx9m5J9b6j0Nq9wPDsZiLusUrovzCKJnA8mKg/8ALWpDhewyCGSd5ox8ixhc7fxG1ZJgIy0RVBexXxXFjU2uVjLK9CNYaYzMQsZA5cyx9BWz4RwbEvnkwjsjAWbu5u7cr5gEHLrz31textMgMNBFAggQTon8R1aZXzq/zp3WSYl1+8yIvIEGtBxHjccs/fsWhYD+8RUUs1tyq2sSTuXc2ABJ3qSpucL2WweHCyzeN3GbvMRuORBjbwsQefjIuBZh4qw07TsJMqLCkQV1IOqsD8xFlA1tfKFAN9RtaH4jtS6uWQkvqbkAAFtyotoT1AFUcOhkkcNiMwjax8BF7E7i9w3ufegNpNxxs2mR9xZY0QMD17sKWHkb8riq37LcVxKNLHhyFtewCozD8K6X9gCa6z2F7P8ACnUNh7PKupL/AN4pHPKeXpdfWugRR5dxcdQP6ry9r+1AfLPZqERSXsGlVvHFNELhhcWKtr/pIOmtq61g+1HDsZEMNj8MiDYHLmQHa6keOJtdxt96pn2o7GYPiC3mj8dvDNGcrr0sw+YeTXHlXJ+0nYfHYK7Bf7Zhx9tFPeINvEguxt1XMo3KigNlxj4aSxp3vDZlxMBuVgkZTYG5PdS3sfqp0+Y1FMBxqTDTEBpcJOvzIwI9ARa5GugIK871XwHtBJEc+FnKE7qSLN6g+B7ba2PQVLpu1WExqiHiuEFxtKgYMl9b2vnTkfCTf7tqApftfFio1i4nhEnT7MqWDDzUg2v1KMvpWoxXYgsGk4TixiE3bDyELIvs4Cva2mYDbc1RxD4fzIrT8LxAxkPNMy94PJl+SU7mxCnyNRWHjBVyJEaKRDqVuhQ31zI2qHUkkEWsAF50BkxcYkglyypLhpk3y5lZf8jEMB5hiNNBU67N/E6QSxRzMs0cjqhlAysmYqLtoLgZhfMoNr61kdhcTHxWObCcQQTvFZo2f5wh8JCyDx3VluTe/jFyat434L+O0OKtAxBIkXM6AXBClbB733OW1he9qA6yT1HrYf1H/Oohxj4Z4DENmCGG5BcQlVWQAgkFCCq3IFyoBqWYKLIiIWZyqgFntmawtmawAJO5sLVdK+x6j96+9AY/DsCkESQxC0cahUW5NgNhmNyfesi9Lkbi/mP0/Smh8xQHlulL1TI+UXJ+v7vXKe3PxghhBjweWaQ7te6Jcc2HznyU26nS1ATrtV2ow+BiMszhTrlXcu33VX7R/IXuSK+f+2nb7FcSYxKDHATpEpuWsbgyNpcA620UabkXqPTPPjJO9mkZjYDO2ug2VRtYdBYCttw/A6iOJSSfqfMmgMPBcPVNW8TfkPTqfOpv2a7JyTkNICF6c29egre9kuxFiHkGZvyFdR4XwlUA0qAYnZ7hPdKAosByFSIKa9RLVVQGr4rhywNcq7ScHdHLgFlOpHMeY612dlvWq4lwtXB0qsoqSszLRrzoyzwdmcCkwxXxR6g7ryPW33T5VYj11W+m6ncajT03+tdB7Q9lipLx6HmOTeo/3qF4vB3bYpIPr/7l/elaVSi4arY6vA8ShiPDLSXz0MDN4dNTr76c+nL8uVVZgdvI/X+teNe9m8L8jyb9/WvYEsTpa2lvc29rae1YT1CmRQRYi9/37HzFa6fB21Go/MfqPMfStsy1bNZIVJQ2NTF4Glil4lrz8y5wPtG2HhkhC3VnSVWGXMjrpdWYHISumYDMLC1txZ4l2pLL4pZQ40W0jM2XW+aVmaRtzpdRqb32rHxeFv4l0PP/ANenr9as8DOGjxCtioO8TZhexXo2XZ7dDy2PXep1FNaHJYvBVMNK0tvJmml47KFKx3RX0JJsG/251ncF4eBKGxatIml1V8pt1BtYj8j1519F4ThGAxmECLHFLhnGgAsByuLWKONuTA9K5l2p+GmJwQaTBXxWGFyYDrJENzlt84/ls2wINr1c0yd9k+HcJxEBigiiZSB3kTIM3+dTqdftai40OlRftJ8KZILycNYPHu2Ela423jdufLUg/i5Vz/h+NuQ0LssinQXyup20YWueVtD5V0Xs18UJYyI8WpkUG3eKAHX+ZdA1vY6czUg59Di8shXx4eeM6o90ZG8m0KHXnbT7VT/gHxKxEJCYpTMv3tFkA63+Vx02v941MuKcH4dxiHMcslhZZYzlkiJ87XU88rC3lXKu03YnHcOuyj+14UXOZVJKDq8QN15+NDy1ttQHa+C8ew2KGbDygtuy7MP5kOvuPY1tO8+9p58vry9/zr5jwXEEYh4pDG41U5rWOvyyC2U/zWt1NTzgnxNxEFkxaGZPvWtIB1+7JptsT940BMu13w4wmNJkAME5/wAaIAFj/wARPlk99fOuTdoOzWP4dfvoxNhxtMgLIBr8y/PDyJIsL21NfQcLggMhBUi46EHUEdP6eVXAwOh0PQ8/TrQHzRwnjrYeeLExkhVcFgDfOlwXW+lwVNtefpXdeM9mcFxOJXlRZAy3jmTRwp2KuNbeRuOorxvh/wAOM/f/ANlTNe5XXuy33jFfJf2tz3sakaxBRZbADlbT2HL2oCK9lOwOGwLmVC8sxuO8ktcA7hVUBV9QL/0qV5+un760D9dP31qoigKWWqbEefr+tLW2+n72/elUSTqvzG3rz9Ov9aArDf8AKtJ2m7R4fBxmWaQJbQa6k7hQBq7fh16nSoL8RPivFhw0GGtLNsSD4YyN8zDdvwqdOZBFq4jxLiOJx0xkmcyN1OioOijZR5DfzNASntx8TsTjrxRXhhIsVB8Ul9wxGyn7o9yajGB4X9qT2T9f0rKwWDWPbVuv6DlUz7M9kHnIaQEL05n16VANRwfg0mIYBBZRpe2g8gK6z2U7HpEBprzJ3NbzgPZ1Y1ACgAeVSiCAKKAsYPAhRtWYBXtKAUpSgFeEV7SgMTF4MMNqhPaPssri4FiNiNxXQatSwhhQJ2OAcU4c0fglGnJraH1+6f3pWqcNHvdl6819eoruHG+ALIDpeua8a7PvCSVBZOnNfTqPKtWrh/OJ0GA4xa1Ovtz7kcvfUfWqTXkmHI8Ue3NeR/Q15FIG8iNwdxWp1OjTTV1sUEWOlWp8Msg00I26+3Ufh+lZJq261KbTuitSnCrFwmrpjs12mxPD5c0RBVtXjJOSUDS9/st+IajS9xoe+dle1GHx0eeFvELZ42tmjJ6jp0YaH6gcAkUOLNv/AF878j5/XrWJhsRNhJVmidkdTYOPPdWGxB00Oh0repVlLR7nKcQ4XPDvPDWPx17ncu23w3w2OvKv8DE//mQDxaaCRdpB56NoNbaVxzjvDsVgHEeNiup0jmUnK2mgSW11P4HGnTnXXOwfxIhxmWGfLDidgL+GU/gJ2P4Dr0JsbTXH4GOZGjlRXRhZlYAgjzBrOeSfOHDsVJG4lw0rBh905Xt0KgnOvM2zCw1tXQ+y/wAUsxWPGKNSAJk030BdOQ/EunlWr7W/CWSEmXhpLKNThnbUf9VIx15eFtfM7Vz2SUm6yBxLmKmNw3eXbXKUPiLls2nTLQHZ+2HwvwuLLSwf9FxB1Lovgc7nvI9iTr4hY63N65XjOyuOwzmGTCyO7G6GFGkWTkxVlGhtl0axAXWu6dg8RiJMGhxUZjlXwkN8xC6BnX7DMNSPO+l6kdqAjXw/wOJhwUceKKZ1FkCHNlQaKrNsWG2mmm53qRsoOh1qlo+Y0PXr6jn/AFoJbfNp58j78vf86AWI21HQ7+x5+/1qpXB235jmPaqqodAd/bqPQ8qAqNUEW2+n72q1iMSIxmc+Hrsfpsfb6VzH4gfFuHDZocNaabUGx8EZ/Gw+Y/hXzuRtQE64/wBp8PhI2kmkVAuhzdbXAFvnJHJbn6Gvn3t98TZ8a2SEvDCL7MVeS4IIfKbBLH5BfzJ0tEOKcTnxcxkldpJGNz9ANANFFlUacgKy8Fw4Jq3ibpyH6moBiYLhpbxN4V/M+nQedb3B4UsRHGvoB/U/qazuDcFlxLWUeHm373Ndb7KdjkiA8OvMnc0BHuyPYexDyDM35CupcL4QqAaVm4PAhRtWYBQHiIBVVKUApSlAKUpQClKUApSlAUst61XEuFq4OlbevCKA5J2j7KEEvHoeY5H1FQjF4TWxBRx9R+o/elfRGLwYYbVCe0nZZXF7a8iNx71iqUVPqejguI1MM7bx5djkYkIOV9DyPI/oauEVseK8MaMlZBpybkfXof3pWpdWj/Ev5r+orRlFwdmdZh8RTxEM1Nh0qhiCMrel99OnmPKrysDqNaodL1Bn30ZqcXgyuo1G+mtrcweY/Mc66N2A+KbRZYMcxePZZt2ToH++v4txzvyhQJXQ6j96g8j+9axMZgQfEn6XPQ/db8j9a2qVfykc7xDhG9Sgvt27ex9TwTK6h0YMrC6sDcEHmDVo4CLvRN3Sd6FyiTIucL93Pa9vK9fPPYft1PgGy6vAT4ojuvUpf5T5bHy3rvfAePwYuMSQuGB5bEHoRyPlW2c61Y2DxA67HkRuP/TyOlU96V+fb7w29x9n128xV2lAe14as93b5NPwnY/+U+Y67GqZMYqjxnKeh5+n3vbrQFeQj5dvunb2+7/TyrU8c7UYfDRvJLIqBNGzHY2uBpfMSNQFuTUI7ffFWHC5oorSzbZAdFP/ABHG38i69ctcE4zxebFytLM2ZmN7DQDQLZVG2iqPYXvUAmnxA+KEuNDwwgpA2jMbZpB0ttGvkNTbU62qC4PBNJ5L1P8At1rLwfDOcn+n9f0rcYXDNIwRFueQA2/QUBjYfDqgso9TzPrUv7M9j3nIaQEL05n1qQ9kew1iHkGZvyFdT4XwhUA0oDVcA7OrGoAUACpTBAFFXES1VUApSlAKUpQClKUApSlAKUpQClKUApSlAKtSwg1dpQEW43wBZAdL1zPjnZ14SSoLJ05j08vKu5st61XEuFq4OlVlFSVmZqFedGWeDsz57lwxHiT6cj+hq2koOmx5g10PtH2TIJeMWPMcj61B8XgrmzAqw+o8weY/elaVSi4arY6vA8Tp4lZZaS+ehistWdV1H7HQ1WWKmz+zfr+/1qsrWI9PYwsVhQ4zLoRv5D/+l89x/VwLjc+DlzxNlb7SnVXHmOY8+VXXFrEaa/S1W5Ylk5AN9L+nQ+Wx/Ks1Ks4aPY8nH8MjX8cNJfPXv7ncOy3xGwuIRe8kWKQkKUdgPEdsrHRgeXsN6moYHUa18mSQEaMNDp6+R6HyqQ8G+IeMwUZi0mitZQ7sGjPQONcnLKb25Fa3k01dHKVKcqcnGas0d845x+HDRs8jqqr8zMbAdBfct0UXJrgXxB+JEuLcLhnkijXOM2bK0mfKD4R8i+GwF76m+9qi3aDtDPjHzzvmtfIg0SMHki8vXUnmTWPhcAW1bQdOZ/SpKGDh8Gzmyj1PIVt8Lglj21bmx/26VlxqNFUegH71qYdmexjykNKLLyX9aA0HA+Ay4lvCLLzb9Otdc7K9j0iAsuvMnc1vuB9n1jAAUC1SWGALUAx8HgQo2rMAr2lAKUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSlAKEUpQGJi8GGG1QntJ2WVxe1iNiNx710GrU0IYUCdj584rw1oyVkGnJraH16H8vStK8TJtqvTp6V3njfAFkB0vXMePdm3hJKgsnTmPTqPKtWrQ84nQYDjFrU6+3PuRCY3APW5+tv0rHY1sJ4awZErVOjjJNXRcSTN4WF76b29CTztb1rScRQlVVRck3+g/Ia1tU0ueit+egrHrbw2zOZ4606kV6GJhcEE1OrfkPStlgMFJM+VASf6etbTgHZmXEEEgqnXmfSuu9meyiRKAFtWyeERzsl2ICWZxmbr09K6Xw7haoBpWZhcIFG1ZIFAeKtqqpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgKWW9ariXC1cHStvSgORdpeyViWjFjzHI+tQHGYMqSCCCNx+9xX0fi8GGG1Q7j3ZJJeWvIjcViqUlPqehguI1MM7bx5djiXck3Ci5JUAD/AFf7VMey3YksQ8ov0XkP1qW8E7FLG1zqepqdcP4cEG1TThkjYx47FLEVc6Vlsa7g/A1QDSt/FEBVai1e1kNMUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAVbdRSlAUog6VdFKUB7SlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoD//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTEhIVFRUXFxoYFRUVFxUVFxcVGh0XGBcVFxcYHSggGBolHRgWITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0mHx8tLS0tLy0tLSstLS0tLS0tLS0tLS0tLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARMAtwMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAABAAIDBgcFBP/EAEYQAAECAgUIBwUHAwEJAQAAAAEAAgMRBBIhMXIFIjJBUXGxwQZCYYGRobITM4LC0QcjQ1JiouEUkvAkFVNjc4Ozw+LxFv/EABoBAAMBAQEBAAAAAAAAAAAAAAABAgMFBAb/xAAoEQACAQQCAgIBBAMAAAAAAAAAAQIDBBExEkEhURMycUJhgdEFFDP/2gAMAwEAAhEDEQA/ANGeJtcNrHcChDMwD2fRPaLx2EeShopmxuEcAmAm6cTEPQxKN+HiPpJ5Ij3j/h9IHJKP1MfyvSAfE0XYTwRFyThmuwu4FBlyAGnTOBvF6US9nxfKk7T+AcXJRBobzyQAo4mx+B3BOBQiaLsLuBSYLEACHpPxcgnPNrfi+VNZpPxcgjFvZ8XyoAFJ927D9E8fRMpPu37uYUgCAI4XWxO9RQdpjBzP0ShdbE71FI6fwDi5ACpOiMTeIUg5KOkXNxjg5OcZA4XcCgBlD92zCOCEE50TH8rU6jDMbuHAJsG9+M/RABinPZhdxb9EqSc3e5vqH0Sec9uA+Z/hCk3N7Xt5nkgD0Q7wklCvCSADBvC81C92zCF6YRtHcoKIMwDZMeBITAX4jsLTxHJKkXN/5g4OCc4Z/wADfJz0KSM0dj2cZc0gJAJz3HgUyCc0bgpod4UFG0G4QgBHTGDg4oxOri5FJ2mMJ4pR+ri5OQAX6LsLuBSh3Dci652E8ChBuG4IA8mUKeyA2LFiTqtcJyEzaGgSG8rju6Z0Q1TN8gT1Nsu3sTOnEZ39PHYIT3TLDWFWoJGGc4kzF2wqgU6GxsNjmmdYNJGxxrgiZAncD3rCrVlB+D129CNRecmjM6W0SLOG15rOsbNpAJsMpqwjUsh6O1BEhxDOuHOlDArEtk+ZsEhItbr19i1XJlJMWG15ZUJ6pIMpGV4WlOTkssxrQUJYRJBOlif6ikdP4BxclAF+J/qKX4hwN4vVmQY9zcY4FGNouwu4FKP1cY9L0KVoPwO4FABgDNG4JlH6+N/qKmYLAoaNc7G/1OQAiPvP+mPU5KP1MfyvSl94cDR5uPNKPpMxOP7Zc0ATTkCQko6U4hjiOziEkikSsvHcooFxxO9RUrNSjhi14/W7zM+aokL9MYOB/lCk6B3s9bUYhzmdrXeRb9Uo+g7u4hAE0O8b1BRxmDcpod4UUDR8eJSAT9JuF3FqUa5uPk5QZRpIhN9obmsefRId54qhR+lFJn7wXzGa2y+6ztTSFk0Ymw7jwKZAOaNwWe0bpTSy4NDmvLjVqlrbZ2Sskr9Q51GVr6rZ7JytSYzjdLqVVgUlvsoj5ssLACAaoIrGdl191yzalgf00ItMzWILdYLTdstmtM6R5Shw20iG4PJdDJFRj3/hymS0GQsvNizGOwf00NzXVqzy4iyzVKydlg8V5bhaeD32csZWTodHi0RIEUzrZ49kBWeWuhvIfIXAEyNvArWKHGrta6Tmz1OEiNUisq6Ouhw3sjPfVDGuYWmRdKo4Vw0TdKdhMtYWr0WIHBpE5HaC0+BtC1pLEdGFy8z3kjo13e7iUfxDgbxiIUYZvjxKcPeHC3i9annBSL2Y/kelSx92/AUqRezEfS5KlnMdul4kBAErNShogze93EqeHqUFD0B380AFoz37m8J80Iumzc/5EoQz4m8ehiL9NuF3Fv0QBHlH3Tu2XEHkknU4ZoG1w4OPJJAmTQ7h3JrdN+LiGnn5oUUzY3c3knN037x6GpjBF0mbn/KlH0Hdgn4EFGLew9rh5D6IUj3b8DuH8IAlhXhRQLu88SpWalE10g4nUXz1XE60gKl07pZnDhg2VS4jeRKfgqVFK6eW6cY0Z0Q2TuF8gJABcx6vRJ2ei2SIsZzokN1QwwS122JI1RaCJbexXTo3k4wYWc6s55DnHVbKQE1B0UZEhMZBNHe0GZc+syUzbMic9g7l2aLoNwjgFDKOb0nH+lpktcF3nDAWXw6NDbQ4bvbwgQxpLCIodNxnqZLUda12n0f2jY8P87av90MBY+KJEh/dxBVe0Sc0kWEOiWWHcs6kVJeTajNxbaOVHHt4kOCwgmK5rJtLiACaxnNo7Fv9HYGhrRcJAd1io3R7IgLvbvEzDYKmJ7YQJ3gT/uV8h3jeqikl4IqScnlkFG0e88Si3Tdhb8yFF0fHiU5um/4eCogEfSZvdwlzSpeg7u83AJRdNnx/KlStA72+tqAJmXjevPQvds3BehpUFD0GYQgBQtJ+Lg1o5JE/eDBxJ+iEG9+N3+eSI94cDeL0AGkdTF8rkkY17N7uH+eKCAG0PQbuHlJSfiO3NPlLkmUbR3T8iVI8feHC3i4JiBG6mP5XJRxmPwO9JSj3Nx/K8JzxmuH6TwKAEw3Li9JsoCFBiNnnvc9rRrkSZnwXYgmwbgqB0vjh1JeB1TLvmSZeKaBnAiLsdFoEMxDEiOaBDquFYgWlwE7bwBPyXIqkkACZJkB2q/ZP6NQWQW+0YHRJtLi62RJALRtEjrTYkd6hx2vDXNILTcRcVHQ/dswjgFPBEi0AADZ2clBQ9BmEKCiRum/e30tWV9KGn+qiy/Odf6nrVGab97fS1ZR0kn/UxrveO19rlEjSmWvofEJhRgTPNh68I5BXGHeN6ofQY2Rwfyw/UAr5DvG9UiHsgomgEWab97fS1NoRzG7k6GM+Jvb6GJiDF02bn/IhStH4mepqUTTZhfxYlSdEdr28Z8kASRDmk/pPBNo4zW7glSDJj8DuBToQuTAjo/Wxv9RSbpu3NHkTzQoujPaXHxJRh6b97R+1v1SAMXTZuf8AIgi/TGE+Z/hJADYQ0sT/AFOT3n7wYPmP1Qh3vH6z5280YmmzC7yLfqmIUbRGNvGXNNpURzWOc1pc4NMmjWZGxOjjMOJnrapYQtG9AymtyhlAMBDJNDZzqt0ZX+Cq1Jjl73OcbXEk7zaVfcuUipQztc1rB33+QKoMGEXPDRe5wA75BWiGeqgQKQxzYkOC4nquLCRcbROy5d2PlPKDITokSG2oZaQALbRLNBBvGtW10MNaxouDgBuDXhcbpu+VFPa9o58lOclYOJk7pPS4sWHDaIc3OAsabteu6Uz3K5UL3bMI4BVf7PKGJvikWghjezW7krVRBmN3BJgh7Bnv+H0tWRdIBOkx7R71+3aVrzNN3w+kLJso0gw6VHexxB9pFtkDfYb+xxWczWn2d3oMJGNbexm3/eNC0CELQs/6FEVotvUb/wB4LQId4VLRMtnmoHu2YRwCdC0omIehiFBH3bMI4BOgm1+L5WhMkThnjCfMj6IUjqYx6XlE+8+DmUKQPd4/legA0r3b8J4KZgtChpQzHbpeJAUzUwPPQvdt7RPxtRgXvx8ABySofu2YRwCNH62N/qI5JAL8Q4G8XpIgZ7tzeZ5pIADNOJiHpYU6KLWbnfL9EPxHbmnylyRinQ3n0n6JiFH0Hd3k4KWGbQo4+g/CfK1PZeEDKX0wpObChjUC4+NUcHLl9FaPXpTNjTWPcLPOSjy5SK8Z51AkDcCV3OgdGzosTsa0d9p4BW/CIWy1RurjHByq/wBoMbMhs2uLvCQHqKtMe4YhzVG6cxa0er+VjR3k1uYUIpli6FwKlGYfzOLj4yHkAurRNAbkMmQPZshs/K1o7wBNGiCTG7peCQx7Bnu+H0hZFln30Y2WxIlls+pf4rXmnPd8PpCyHKLiYsbE7X2Q1EzWn2d/oXZEiXWw9RM/fiw9v1WhsvWd9DpiK/Dt/wCM1aHDVLREtkND0GYRwSgXvxnkjRBmNwjgEIHWxu4yTJEfefAOL0o97MU/2u+qP4hwN4vSjXsHa7h/KABSxmHe31tUjzIE7AT5JlI0fiZ6mo0nQfgdwKAFRhmtHYOSbRbidrnH9xUsIXdyhoWg3tE/G1MB7NJ+8eTWpIQr3Yj5WckkgEfeHA3i5GLc3Fyck/TGDgT9UYuiMQ5jmmAoug/A7gVFTI/s4bn/AJWk/RTkTDh+k8Cq/wBLqVVo4breQO4WnkhCZRZz8StB6LQakBn6mhx7y6R8AFn0JhcZC8mQ3krVKPCDJMFzYbB4VwqkKI+Nd8TeMlRKRD9tTHTuLz4M/hquuUo1SE956sneDgqV0XbXjOd+WE895kOZUoZf4d4UNF0QpYZtCio+j48SkMc3Td8PpCx+ln72IR+vZrZDWwN03fDwCxmlPznmY63ohKJmtPssXQ8/fkdnCKDyWjt5FZp0Qd/qAJi2frJ5LS9R3HgVUdET2Mo+i3cOCEDrY3+op0C4bgmUe443+pyZIW6btzef1SiabNz/AJAkzTf8PAJP024XcWoAUe4YhzPJGlaD8J87EI/Vx/K9KlaB3tHi5oQBK0y7lFQxmMwjgE6MZNcf0uPkU6A2xo7AgCODrxO9RSSouiO23xtSQAYmkzC4ebUY2j8TfU36oRb2fEPSeSMbQd3HwIPJMCRgtl/mtUHpbS6zobB1WDxIB4SV9D5GZ1WrJ6bSK7y46+FwVRJZ7+i9Hr0lg1B1Y91o85LRjp/AOLlTvs/o83RYmyTR32ngFcXaQw8CfqlLY0cfpjGq0V/6i1vnPkuT0Ig/dUiJtbVHcCTxCd9odJkyEza4uPdID1FdDopAq0Ltc17vEEDyAR0HZ3YZuTIFx3u9RTYtJayRc4Ds1ncLyvAMqgWBhNpMzIC0kjt8ljOtCH2ZpClOf1R0mnPd8PpCxWkkmdmoytuzYN1q0vK+XnwYUWMIbSWtrSLjKwS/KsvEjOdgk62c+rBUKrCp9Wa/HKH2RYuiLz/UwwRZN0rTZMuut3LT3Gx2E8FlfRQypTDK0VzpbC5aF/tBxDhUFxFjjrEp6KJXFOm8SeBfDOfmKOlDFg7lHRrjif6ioYNPbZWDm9t48rfJTUQ5o7ZnxJWkKkJ/V5MpQlHaDD04m8ehqR0xg4uP0QhaT8Q8mtCX4nwN9T1ZIY17MRP7SOaNJ0fib6geSETSZ8R9I5pUg6Pa8cHHkgA0nQfhd5iSlZZJQ0rQd3Dxc0c0+KZNcdjTwKAG0XQbhHBJPhNkAOxJADIvUxfK76J0XQfhPMpsa5vY8cHDmnvta4fpdwKYjn9IKV7OjxHbWyG82c1llZXjp3S5Q4bPzGsdwu4qhkq1oT2aX0Qo4ZAFmlJ5+IBdp+k3C7iz6qsQOlVFhMaA5zpQ2Cq1pnMCRFsgvHA6bGJHY0QmtZMgl7wCAZTcTcJSuUFHP6ex61JqDqtaO853MK7kCDADdjAwDaZVVn7ojY+UHGYLfaOIM7C1gJFuzNCvGXXWM2Ek+A/lZV58Kba6RpRhyml7OfEtMyZk3n6bAmEXJVknPuXzjk28s7iWFhHM6WPlQ4+Aqi0hozrBc7WdkJXTpe7/AEkbCqhSevf+J1R/wwupY/V/k8V3tHX6LOlSW2Dr6+1yv7HXrPejRlSmmRvf1QNutX2tesP8h/0X4/sq1+j/ACTOfMJ9EjezM55pOcPm3rzgqSyS8lOo6clJG04KSwzrQb34z5ABEe8dhb8yhyY6cME67Sphpv8Ah4fyvpU8rJxWJ+m3C7ixKPezHP8Aa76onTGDif4Si6TPiPp+qBApOj8TPUDyTqRoOwkeNnNCkdXGPIOPJOpDc072+pqAJGBJOh3pIA8tNiBsJ7j1RWstuINy51K6SUeGJlxJI0G2ut1HUO8qm5Xy7GjTm4tb+Rtgl27e9cdxVcRZPblzKppDg6VUBoaBOd2tceakJUJVCI52lMJtTibUw3pDC5y7/RSOa7mzMpAgTs2GXiFXn3Lp9HIko7e0EeVbksLiPKlJfsa0HxqRf7l2IRknJkc2L5xeTvZOV0kiwvYu9u6rB6xBkTYbjvkO0rPMo5WhziezhvsdFtc8WkGFWkALBM2W6l7PtTpprsgA5rWl5GombmN8Kr/7lW6QPe4o3qhLs29LjFHKq1eUmWXIOX4DY04rXsIc8B4fNotAm4SBAtvtVqyj0xFFiiHHhOqOE2RWEOa5u0tMiCNYE7xtCy89fE/1hWCK/wBtkkl9rqPFaGHXVcWtluk8f2hVVoQk05fgiFaUU8Gq0CnQ4rGxIbg5rhY4f5YexTvdYdyyT7O8v+wjexefu4pAFtjYtzTudontq7FrUETc0bXNHiQuZWt3TqKPvR76dZThy9HboDZNlsc4eDiOSlh6b97fS1No1xxPPi5yMPSfiHk1oXfOOL8Q4G+p6Lxnswv4sQ67sLR5uPNF2mMB8z/CBBjG1mKf7XfVOpBsHa5v15JkXSZ8R9I5oxjoYvlcgY6M+q0u2cyElDlA/du7uIKSMZDODJ4psUbinxLlDOxaEEc1CSpCVEdaQyM3oFE3oFIYHL3ZFH3zN54FeJwsXY6MwK0Wt+UeZs4VvBZVZKMG36LpxzNIuJKEUTbJGSa8L5tHfM8+1DJZIZSBcAWPsNgMy07gawOJqqlK/Ft60b1w1sWUIQcJEBwIdMHdLXvuVcyh0Ko7y8te6HMumJ2Z1VxIrA6xt1rrUbmPFJnNq0JJtozWkGRfb1n7fzNVnygw0XJjYT/e0h4eWm8MaQ674YY3k7F16fkqiZOaY7mujRC81A4iQcc7ZICy+RKo2VspxKTFMWIRM2ACwNaLmtGoC3xK9UX8jTWkeWS4ZT2zygkGwyOojUdoW+dFKf7eHR4v56hOK537prAlrH2Y0kmiSF8OK4D9sQebljeLCjP0zW1eXKPtGn0QZo7+JRg3vP6j5WckKJoNldIS70YB0sb/AFEL2JnlCw57/hH7QeaP4hwN4vQhaT8Q9LUW6btzRxPNMBP029jXeZb9EYhzm/EfCqOaB958A83O+iL9NuF3mW/QoAbSmghoOt/yuQTot7PiPkBzSQJoyOIoJ2KZxXn1LQRESoynlRm9SA03oFEi1EoGAhW7o/RakME3uzj33Dwl4lV7JlF9pEA1C124au8yHero0Lm39XCUF2e+xpZlzfRICk/UmgqOlUljJV3tbM2ViGz8VyUjqMZSr/hdyU7zfvPALnUnKUEn30PRd12/p7VPEp8G376He7rt7Bt2q+LxoWUVj7UWH2EM6vaEHvaSOBWZgLacsf01IhPhPjQ5O1h7JtI1i28Kg0roW5pzaTR3N1Fz6h8JEea6dnVUYcZeDmXdKTnyXkqoC1P7LoRbRHu1OjOI3BrG8QfBcKgfZ5FfJ0SNDDDbOHN5I7CQB32rQ8mUNkCE2FDEmtEht7STtJme9TeXEJQ4RY7WhKMuUkWLIkaYLDeDMYT9DxC9tHuntc4+LiVwaHSPZua/UDbh1/XuXfoozQt7Orzp4e0Y3VPjPPsEA6WJ3lZyRh6T949LUKNcTte/1OToQtdiPkAOS9Z5hN0zhaPUeaXX3NHmXfQJQ9J+8elqLdN25vAnmgAO024XeZb9EETpnCOLkkAZA4qCalmodu9WSMKjN6e5MKQxpRcinEJNjSLH0do9WGXm9x8hYOfku0V5YDKrA3YAPCzkvQHL5+vPnUbO7QhwppBmuH0tyVEjthezANUunMgXgXT3LtFJzlnTm4SUl0aTgpx4syym5OjwIgL4ThVIIMq7ZT2ibTuKkiZepFtUhs68pNY28gt0W7L/APCtOJtRJXuV++4njdiupGdMyvSSbIkWRcZBr3zqyzbGi+c59kt66xyFHitYWiQqjTzSOyRt8lcQ5Oa5TK/l+lYBWMVtjKBALIUNjpTawA7wACvQBYmNNiK8TeXk9aWFgfqXfyNGrMA1tNXuvHlZ3Ku1rF1cgRM8jaAfA/8AsvXZz41cezy3kM08+jp0XRHbM+JJRgHSxv8AUUqG3NaLBZvQowF4cZEki4i0z8DzXZOSOhG15/UfIAckWOE3bx6WqOjSkZz0neM5cp96VHMq2J3Ey8kASA5x3AeU+aSjYc58wNLgGpIAyFRbU9MN6okY4JhCkcmEpDBJSQhaN4QkiVLKRcHu4otcvP7Ss0HbI+NvNSMcvnZrEmj6OHmKZ6C5Ncbk0lDYpHgkmgSgb0HFAYJQU5pUQKLUgwTMNidNQsTwglodqXRyIfvRhdyXLmupkdpHtH/lYQN5BPLzXptVmqjz3TxSZ2KBoQ8I4WJlC0W93gnQ81u5vJKj3DcF3DiBgcTPxP0klAtn2uJ80yiXN3BKinNb2gIAMJ06x/U7jJJNgXDtmfG1JIDI5Wprr+5NMRRRIwmO9aEkrtSa4cVG6LxSfFsQBKbiioXRgAZnUV78mUGJHIENs7pm5onrJuCllHuyVHmyqbxdu/gnzGxdNilo3RqJDY2JCisc+VrXAVSDZIE9llsu5eKDS21qpzHzIDCb5fkJ0hZ/9vXLvLfzzj/J1bO5WPjl/B7gEiLk2sk43LnHRHG9BxSN6TggBApzDYmgItCAHtdYnByjAsRZsQot+EJtJZZJDmbAJk2AKywIHs4RbrquJPaQf4CqzKfUBqMD3WGZMpCYMgJWTun2r0OyvGe0h1VsxMBtshqmdeu6S6ltSVNZezk3VX5HiOkWeO7MdhPAppfJp7AfIKrR6bFcJF5kbCARyGxRGkxDY57pSkROy4zB7hrXr+Q8nAtzHSbuHAJQXANE7JC3uVPfFiGwvcWkESJcbNstf8hNfnNq13SN8nWkHUSL/wDNSOYcC3wIgqttFw4JKoRG2ETNU23kdt4t13JJcw4GTf7QiznW1Xat6jNLiEg1jMXXa71b4HRCGZ1i++wNIunI6rZc0v8A8tRxLOiX2gkG6+Ra23XarVRMJU8PBUHR3StLpzvmeCAruMplx1CZJn2dqutM6JQvZkwi4vAnNxsMrwbpLz9EAx02lrWRGTm6U3bQQDdIiR5I5rGSePkr0ShRIdVz4cxfUM7QJGZF8u0K4ZCy7BiBrGD2er2Zk0En8srxq22DaVLEydDL3vfWLiASJgtFhLWTneLBKY1XTXkyj0fZEFdn3ZaBMyNsw2UxqdMi3vUOWdmmMaOyJxLSSJEWEANcesJG6Rs3tO8zMBAkRMSAkZSItLuyerf3FVKDT6VRiGxgS01qpdb+mbXbAZWcFYaFlhsZwbDe0Ovk4GYbNs5TvMgbtpUOJSllHUhkkyImJC22/ffyTormNBc6bQ0EkzmAACSTZsXniRSA0mQN0jfbquvsJ7z2LldJKaajYLZziWm29ubMdtY1RuJWboxk/KLVacF4Z6cm5XMYVhCc22Wc5l5lLX2gb14aZ0vhQ5zhxTK+QZZbK3OXSosB0ODKVwnZrda4uqkb5/wqDSYYMGkGV1QzFgAMRt9l9o8UlbUm9FO6qpbNByVlVseHXa1wFaVsrLGmZkf1DzT8pU0shOfCb7RzROqXFs9ctG+UzLXYuF0NeRAMrM8gHexs5eDfFdprhJ0iCRb2TbKchfbm+BTdvTT0H+xVa2PyblRseCyIyQDhbe4jVLZefJSUyGXATmCJlrpA1DLULgLCDdZvVZydF/pKVEg/hxZuhfpeBaJd8wNhbtVm2ECZBIDWu6uyV19UW77LVfCMdIz5yltngNOLXAOaW2ycb2iVk62rOAEjK+a9LoxbPZKyVkmmZvv1X9pvkmNjsbaDITBDTaNZJJwtBtlKzanR215EXk2AagLJu1AltpVCyPYDpTlbK47rBst8ihGdMzBN0rLT2mcrb7uzstYwOHWsImC4TzZXW3StsnOySZTbC1o0SJVpkzcNRIF4BJ7ZJCPSaQXXWOPkZAn6bRepGGZmAG1QJCeojztFi80EB4kZCQIFhscSSZHXrPZLWnQa5q1pF0jLXvssJlOXh2oA9MOLOYrGQvlO+dotNwJHikvDHcSW1etMybeKpIDibJGUgbP4SMBkUSkODbDrGzaAoYYzj/zXjcALhsvSSSQ2dCmQh7Qt6tUGUzrLp91lyptMcYdNa5maXEl0tZJM7O5JJVHZPos0a+WqqHS1VrWzluaFEywPIv8Aaf8AkI8ZOPlsCSSOhjstQG+zLSARWAkbbKodZsMzfeqNlBgY8BtmcdZ1Gy1JJVT0RIsuQMoRXQogc6eYdQne4znKc52zTaDEMSmNrmciAOwBpcP3ElJJC7Kl0WGG7McdciJyF3s2uHnas9pp+5i9pZPttnyCSSmGwlosfQ4f6d1+mDeZTqt1LuwWgsrEAmU565gVh52opIlthHRXul8ICitiDTY8lrpkkVXsaLddhN668GIS4MMqtUmUgLb52a0klT0TEfToYAmBtO4gGRGxNya4mU/92D35ySSnosMSEPaNbKz2TbpjtlMWy7LkynRCKjZ2F7LDb1XO13GetJJNdEvs6EKxjtwPbOsdfcFBlQkw6REJNcTk6ciM0XHVckks+y+jk0aO6bTM6APeS6Z7dEeCSSS1wZZZ/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhATEBASFRAVEBYVFhcXEBUXEBYSFhUYFhURFRUYHSggGBolGxUTIjEhJikrLy4uGB8zOD8tNygtLisBCgoKDg0NFxAPFjIdFR0rKzg3Ky0tLi4uMjcrKys1Ky83NysrNystKzctNTc3Ky4rKzc4KzEsNzcrNys4MysrLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xABEEAACAgEBBAYHBgMFBwUAAAABAgADEQQFEiExBhMyQVFhByJxgZGxwRRCUnKh0SNzkjOT0uHwNENigsLD8QgVF1Oz/8QAFwEBAQEBAAAAAAAAAAAAAAAAAAECA//EABwRAQEBAAIDAQAAAAAAAAAAAAABEQIxIUFhUf/aAAwDAQACEQMRAD8A7jERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQERLVmoVeZ4+UC7Ew213gvxMo+1MfAe6BnxMDrn/F+gnvWN+IwuM6Jhda34v0ErXUHvwYTGVEtJeDz4S7AREQEREBERAREQEREBERAREQEREBERAS3dcE58/DvlOpvCDz7h9TIxmJOTzhV27Us3kPAS0BE9kHoEuCWxLqCFHYKMscCR9uotfsEVp+JuLn2L3e+ZWv0VjYIwQB2e/2+ciGBHA5zCMn7Ih7d9rH+YQPguJ6ujT7t1oP8ze/RszCMpgSapcvYsWweBG63xHA/ATI0e0+O6wKP3q3zHiPMSIruZe+ZgtS0BbBxHI8mB8Qe6FbBVaG9suTXadQ1TBbDlSfVfx8j4N85N6e/e58/nKi/ERCEREBERAREQEREBERAREs6zVJSj2WuqVopZmY4VVHMkmBeljU6gIPPuH1mhaj0lJaT1H8Onudx/FcfiVD2B+YE+IEw26a6bOWa1j3k2nj7lCiBuzMScnnE0Y9O9KPuZ9pY/8AVLT+kPTjlUnvU/4oXW/ZjeHjOet6SqR/uav6T/ilm70raSsZeqo/8Kqd4/qflBrpSzLpXJHxnCNoelK2986HTJUg73ZmsPtCEAfrOn+jnpQ2upzeFXU1ndsC8FZT2bVB5A8j5g+Ig1usw9oaAWDI4P3Hx8jMyIRqVlZBIIwRzEo3Zl7auPXnh6oVQT58/qPhLOJFWsRiXMTyFZFLh1KOMg8/3HgZVormrbqnOTjKN+Nf8Q75i8uImRqE6xAR21O8p8xzHvgT+ntzwPP5y9IrRXbyq3f9e8SUBzKy9iIgIiICIiAiIgIiICcG9PvSprLl0FTEVVhXuwe3aRlEPiFUg48WH4RO8z5I6a6oXa7U2MTuvqGJIGSFLdwPPA5CBD1m9kd160117u+wLbibx3UDHkMnOB5HwmOdS/42/qM3/S0LUbdPoUNi63S12Cuw4NCNXZW9lthX1lywbAAJzWQeHrX+jPRVGYpodIdfepw99hCaCtuGQCeDEcDgZPygc2NzfiPxMpcnvzyzx8PGdW2x6KmWxX1+0dLp7tRYdyurT2vWXyBuJy/Evd398ktX6NddpVAbT6XX0KgXcV2rvwoC9YFs9XeAzybJzgYwIHH9mbPt1L9XSm8+C3FlVQoGSzOxCqPMkcSB3zHtBUsrKQykggjBDA4II7jmb9paRo3uv2crGwVmu7SXixNRVgrbnAIJAatMqchhleOcTV+ke1KL9xKqSOqVKktJ3XemusL69Y4bxfffOSQGC8lECvolbi4Dnx5eI8J27Y+gNFiWUndJXIPcVbjgjvHLhOCdH3xfX5n/AD+k+lNlrvafSv5EfAkAfACBsXR/WWFra7t3OQ9eAQNwgBk4k5IbjnwsUd0mpFIm6+nYDi28h/KUL/OtZKwIG+sM1ufxkfCR1AI9VvPHmMkZ/SS2rXcsbwbiPf8A55kdq62JBUjgTz8DjI/T5yK9lSHd9ZcZIwynssJjbln/AA/E/tPOqs8V/WFX5c074OJidRZ+JfgZUmjsJ4vw8h9YEnsxsq3hvkD2DgJM09lfyj5SL01eAqj2SWAlSvYiIQiIgIiICIiAiIgeMcA+yfHm16me91UZYucDIHieZ4D2z7Bu7Lew/KfKGnV21rVUqTfc/VVHIwruwAZhg8BwJPgD3HgG79BOhC609TW7DQ1Efa7V9V9TqMEnSoeaoquQ3kcc+M6ft7b2h2TpupvCIm4ypRVgE1EkDhkBMjPEkZOcZMxtp6jTdH9m07h4VJ1dQJOLLWGWsdV7XEFzjwIHOcV2JrKtpWWW7Qr66xtoaVcte6Yr1DNW4whHLdQ58FUDdAgb7Z6UbNY6mjZLXLVceqYI9w65VPYYBQH3Czd/D3Zkujfph0eosA1FfUWMN0Nvl1AB5MMArx8M/CcZ6I9I6tMm5qBeyjUJenVlcB667Am8rEBgLHrfHI7gBmB0dNbX3dYu8DptUyM7kMlqUWWVW5B4vvIOByMnv4QPpLpd0Or2mi6ipq01qetp704oyA5Su0/7xCMezPDv3uBdNdk7wfUirqbkt6rWUnGa7/xjxVueRzyDxyZtXoi6dmlbdPrWZtIELntHq90gg8OOHYqm5x3iRwyW35v0r6Kt0o2otToGQVauoqhtCupFL2JvYDA5rJznDAAjEDiuxv7er830M+hLnsbZ+nSpmRVrstudDi3cU4Sms/dexmxvdwVu8ifPeyf7evHLe8eOMGd6GsNekRc439OtgGO0mmvR7QPYrjh5wJDo1sW5axaup6t94lPVZlLjKl2UsBuk5AHaK8STvYG/bH1pvqV2UK/FXUHIFiEq4B7xkEg94IM0vZG0B1Fa541r1bfmT1T8cZHkQZsvRB9+l7Pu2XuV/KuK8jyJQn3zMdefuZ0kdpUby5HNePu7xIlZsMgtRXuuw8+Hs5iac48AnuJ4JUJFegSoTwT0QL2n7S+2Sci17pKSpSIiEIiICIiAiIgIiIFF/Zb8p+U4H6ItmLbti65+zpq3YEngLbG6pB/S1vvAnfLuy35T8pyj0H6RS+1nYAhrqq8EZHqCxv8ArHwgQ/pQ1tOp2pToHrzRXW53Ufc/jOjWlzujiC24SOZKfHRemfRZaN1tNU6qqWbytvFrK67nRdYhbgysgrdgvBd9W7LDFfTbZ92r1m1NSgrNVWpsUkMquwUliFXOXKKfWPcAO4ATXdjbWfTt3mskEqGwwK8FsrbjuuATg4IwSCCpIIRsytm7PfUPurgKBl2IO6i5AyccSSSAFGSxIAySJP63o/8AaR12i3bAw9da8Ba3LDD2IT/AQqXJBO6pR8MVAjau06tIvUaN1Ygn+KpyBwK9aG+9awJ9blWrbq8SzEJd9MNHor7qa3PVXJWGAJCXkrvte6cFtFbFcggVm1VQljY87Lo3Ta2xdxt0WanStWM7u816IQr4HM5rV/YBPmbYuyH1doqqasOeXWWKikkhVQE82LMoAHj4AkfQf/p/1JfZzq27mvUsoxj1RuIN0gcjwz55z3wPnfZH9tV+b6GfRlexk1ezdMrMyOl29XYuN+t93BIzzBBIIPMH2GcF19Ar2lqEHJNZco9i2MB8p9GdHf8AYKP5n0ECL2Z6P2XqhqNSHQsE/hrZU7IFJAbFmCBu44huHDOOE6RpqFrRURQqKoVQOQUDAAkPpDfvnrRX1IvTqN3O+U6k75syee/vYwBwA5yckxbyt8WkjNqJ6ynxHy/8yTmBtX7nv+kqMESoCeCVSNEqE8EqWBc/DJJeQ9kjT92SNfIewSpVUREIREQEREBERAREQKLuy35T8pwHoHbl9cnet6P7zvAMPMbvOd+v7LflPynzV0O1QXaGoqbGLUbAPe9bbyj4Fz7oEbtvbt2lfaWnwSNQxG+7v6tfrId1AdxgRvAEjI9vLTZ1LbOzqa9pJfeaxW9NmOsKdWbuqcIAbVatG3hnLgrkjhnJnOdsFPtGo6oqauvs3N1SqdXvncKqeIXGMCBe2JqjWbhvlUsp6t+XYd0Qtx8Ax/Ud8jbaypZW4MpII8wcES9R2bv5Y/8A1rlWuO8K7O9l3W/mJgE+8FG/5jJ7bk3jf2Mno1tn7Fet4qFjKPVBd03WyCGDIQe4qQeBVmHfOl+jsOdLmwMM27yqQAqjgyGtfurhhj9OGJpWx9NpX2dql6yj7e9qbiurC4KLK1UVMV3cENcWweQXPAToGhqXQ6EMVANVLWee9ukge3kPMy1iOV2Wb2vsbx1Nh+LMZ9H7AYDZ9JJAAckk8gAOJM+Y9kf21f5voZ9N7DrD7PoVhlWfBHiCACIGw6W+xup361VOs9U9ZvOTuvkMu6AvDjwZu+TUhqOzpf53/bskzATA2r9z3/SZ8j9qc0/5vpAwi2ASe6an0g2vqVZRW+4pOMBVJ95IM2m/UIgHWAkHhw8ZEbS01VrUnJUGzgGGC2ATgH3c4VIbKusKKbeJPfjHHwIHCSKzFep8D1cKCCMHI4EYmWshFR5r75I18h7BI49oewySXkPZKV7ERCEREBERAREQERECi7st+U/KfJ1e8NY1lbYtrffReHrkEkqSSMKQME8e0OGMkfWbDIPsnx/tHUNVqS6k5WzPPGRniufAjI98Dp+1dHTtDSp1eMOm/XjAPiy8vVOe/uYDOcYnN9HX9lr2guorpJ6rq6xZUhtNzMF36mZSy7iGxjukYYIDJ7op0oWq2xCD9kY72efUvhd92UD1ULNjPLIJ8Ztu29g0axC1m6DgkOOI3ccGPLPADiCD3ZxIrl3R/YT6mnXWK2FpoBI3GZmb1rVUAchjTvx7uHuzvR9TXc99VorIasbu+qMEYndNqozAsVyCQuSQDNk0vRHU6br109yKly7pHBiODKGXeXKMFexQQSQHPHMzOinRH7DdXetoF9eSpHrcwRkhgByJHKL01wucvPTWegPRvfbrr1IRDwyeBJ4BSPHPd4HjjIzK+lLaoSsadO3ayvZ5IvYB8yV+CSf121xpK910DWtwqqUYax+Jbhk4XvLd2SOJ58u2vthnW0Pg33OrXMMlCAN5Uw3ZKZC4A4bp4nPAzfiO2R/bV/m+k+nej/8AsGm/m/tPmPYw/j1fm+hn0xs7eGzaerANnrFR3FhnA95AlRsdHZ0v87/tWSakBotSrjSBGDfxjnBBxiqwEHHI57vI+En4CYG1B2D5kfEZ+kz5hbZs3amOM4K/MfTMCNtQEAlc7pzj3TStr7SL6mvjwU8PLum7VWAgEcjLVuzqXbeemtn8SgJ9575FUbMtZl5+p9R3CSKy2oxy5S3q9UK14cWPBR5+PsgX6TvM3gPV/wBfGS0i9nVboUd/f7eZkpKUiIhCIiAiIgIiICIiAnyJ000pq1mprxxW51A8SGIE+u5wD057At0usr19O8EtZTvrzr1VfEHPdkKGHmrQNM2yK9E9X2erULU6OHGoKb9pRmrNtZVfUXJdRjj6pznJmVsLbdlZb7NagpJP8C4grncryFAOV3mawcOGe7jNS1N72EtY7OxJOWYk5Zi7c/FmY+0nxlmB0m30iBHZL9Iwsrcg7loZcjgSMgfWWR08t1LMtFSU4QsbHPWMEBGSq+qoPHPE44TnbHPOUmME9qNe7Xr1Fll2otKrvsSWy43epCcjh8MMcuA7pnavo9TZs1tbXYxvruIuB7DB3AUjh2sWVnI4YPiDNVouatldCQ6sGUjmGU5BHvAmybe6ZtqaOoTTU0B2VrjWoHWsmN3hj1RkA4OTkDjzyENsBM31+RP7fWfS2y23dNpU7+J/U/5T546HUZvUnx93nO36DaXWPWlYLEAKoHEnA/ygb8hBfTgYzvM7cOYFbKSfe6SVkF0epsL22Wru7v8ADTiDkcGscEdxO6vtrPjJ2AmBtUbwVfE5+H/mZ8jNS+85PcOH7/WBDvW9RJQZT8P7Stdpr3hgfyn6TPIlt9IHwM7o7z5SNMJ9ok8K0JPiRgfvPdLpSW3rDlv9cB4CZiUKvBc4HLPPHnL1K8YGZpV4+wTLlnTLwJ8fp/oy9KyREQEREBERAREQEREBMTauzatVU9N6B6nGGU/EEHuIIBBHEEAzLiBx3a3ohRGJrBsqzwwB1oH/ABDIz7RnPgJCP6OtN96zcPg4tQ/ApO+zF1mk3uI7XzgcHPo40h5aqv8AvP3lP/xbSeWoT+8H7zsrKORHxEoOmrPNE/pELjjZ9Ey91y/3if4pS/ogzy1KJ5s6kfBckzsR0FJ51V/0L+0p/wDbKP8A6a/7tf2gxwbV9DtTon3a7KrgTgFGw7eW4fkCZ2D0X9G7NPT1mpXGpt5jma6hyTyJ5n3Duk/RpUTsIq+xQPlJXSHiPZiDGYoxwHKexEItai3dUnv7vbIwcJe1V28eHZHLzPjLOZFInkQpL9K/GWkXMztKnf4fOEZCrgAT2IlQiIgIiICIiAiIgIiICIiAiIgYeu0e/wAV4P8AofIyILkHB4EfGbHMbWaJbPJu4/Q+MKhg89355qNM9faHDx7paDSKyA0yaLJHhpeR4E5Tbkef+uMxNXqs+qvLvPj5CWK7c8DKXr8OIhMU5iUwBCqp6BmepXMimrPLl493+cBTVngP/Ez1GOAnlaBRgSqVkiIgIiICIiAiIgIiICIiAiIgIiICIiB4RnnMO/ZiNy9U+XL4TNiBDWbJcdlgf0MtHQ2D7vwIMnohdQIqcfcb+kytS4+639Jk3EGogb5+439JlxNPYfuge0/tJOINYtejH3jny5L8O+ZIE9iEIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEBASEhIVEhIVFRYQFRUWFRIVFxYSFhUWFhUVFRUYHSggGBolHRUWITEhJSkrLi4uFx8zODMvNygtLisBCgoKDg0OFxAQFysdHR0tLSstLSstKysrLSstLSstKystLS0rLS0tLS0tLSsrLS0rLS0rLS0tLS0tOC0tLSstLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAgH/xABKEAABAwICBQgFCAcGBwEAAAABAAIDBBEFEgYhMUFRBxMiYXGBkaEUI1JykjJCYoKiscHRU5Oys8Lh8CUzVGOj8RUWQ0Rkc8Mk/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAIBAwT/xAAfEQEBAAICAwEBAQAAAAAAAAAAAQIREjEDIUEyYSL/2gAMAwEAAhEDEQA/AJxREQEREBERAREQEReJZmtF3ODRxJAHmg9orL/i9L/iIf1jPzX0YrTfp4v1jPzQXiK3bXwnZKw9j2/mvYqY/bb8QQVUXkSA7CD3hekBERAREQEREBERAREQEREBERAREQEREBERAVtiWIRU8T5ZniONou5x2fzPUFUqqlkTHySODGMaXucTYNaBcklc0counMuJTkNJZSMJETNmb/MePaPDcO9bIrHHbatLuWCaRzo6IGKPZzmrO7sJuGjs19aj6oxOeZ2aV3OO4vLnnxeSVjYWq/iYr06ya6VWOB+Uxp7rL66kjdsAB4G3kV9aF6CaUsJ6At+aD3a1bWbwHgthhffUdapVeGB2tup3kVgxMchGw27Db7lVbWyjZI8fXePuKt5YnNNnCxXwHtRmmXpdI66M3ZVTtPVNLbwzWWx4Vyp4tEelKydvCWNuzgHMynxJWjgjqVRrh1/es0nSetG+VmjnIZUNNNJxPSj+Ia294t1qQIpGuaHNIc0i4IIIIOwgjaFySx1tYPgbHwW26Hab1NE4Bj88V7uifqaeJafmO6x3grNIuLoxFgtGNKqaub6t2WQC74nWD29Y9pvWPLYs6sQIiICIiAiIgIiICIiAiIgLC6X6TQYdSuqJzqBysYLZpJDezG37Cb7gCVmlzvy+Ys6fEo6Rp6EDGgjcJZbOcSOpuTzRrFaV8otfiEb2SObFBIbiGMasjTqzvPScbjqGrYtRa1fHG51bNg7BqHkq0LVcdpFeBqvYwqUTFctCpT01esq8KtGgzeiWBvq6hkLdQPSe72WD5Tv63kKQOUTQ+KOnZUU7MoiAZK0fOj2CQ8XA7TvB6lnuTbR4UtI17h66YB7uLW/MZ4az1nqW1VMDZGPY8Xa9pY4cWuFiPAqLXLLP25kxKJhaARdx1NGw37dw4rUaiqyOc07QbHUSt5xPDnU9RPE83fG90dz7DT0SO0Wd3rRtI4cs5PtAFFZWybika/q8v5o3EOry/mrBFm3LnWVjqi7h4fzWRpY5Tsy99/zWDpHLY8MJtcXsNp3Dt4JtvKsnh4q43NfGMr2nM1zX5SD1Hcpw5OdJp6yOSOpa1s0WU3BPTY64DiLAA3ab21diiGhdsW7aAVfN10Qvqla+Hvtzjf3ZHemzltLKIixIiIgIiICIiAiIgIiIC5I0rxD0jEsQqL3DpZA0/RzZGfYapt5bZXmCmha9zM73yHK4tvzbWgA22j1mzsXPksTmFzTrOa5PZs+8rZF4z6MV3AFYterqGYcVcdJWTiVw0KxiqW8VcNqm8QilxlWy6B4N6VWwxkXYDzj/AHG6yD26h3rVfTIx84KUuRGrp3PqOlaZwDWA6rtFy/Kd52aupKnK+kuIiLm4IZ5W6PJXh4GqWJrj1uaSw+Qaoo0si1Mf3FTtyzUl4qWX2Xui+NuYfuyoX0hhzQO6rFV8de8WmrPaGVtJBUOnqmc4IY3SwxfNkqQWiNr9WpusuPu9xwKLHFunKVY4gKhtstVT09YANnrIgD9ppWxnTCSnZRQUEzWQMpoTIGxsOepcLz87mbcm+q3We7W9JzzuG4LUW1tjnonHhzMl4wfqv8lY4DTPmlihjF3yObG0dbjbw3rGpDxmKO9NURsEbKmLnSxvyWStcWSho3NzC47V7oKrmnxS3tzUjJT7rHBzx3tDh3qlpNVs9IbTxG8NIwUrD7Tm/wB489ZffwXmnsRY7Dq7ign1FidFKsy0VM8m7uba1x+mzoP+00rLICIiAiIgIiICIiAiIgijlkmvUUrPZie743AfwKEql15HHrKm3lhw2bnWVOW8PNCLMPmuDnmzuAObUVB7j0j2q8XfH8xUjCuY4WncFQiV3ErW9spI/ZHgq7KKP2B4IxXDEH2KmjGxjfALfeSimzV4dbVHG9/ebM/jK0hik3kbp+nVScGsYO8uJ/ZCzLpmd/zUoIiLk8zVuUuk5zDZzvjLJR1ZXDMfhLlA9YzMx44grpPHKIT0tTCdYkiki+JhH4rmfDDeIA7i5vZruB4ELY64daaK9tiRwNl8V1icWWV461ao5Vt9DIJcBqY83Tpq2GpAO0smjdEQ36zQdX4rO8klJd9XUMdGJ4IctO2R7WDn5szRIS7c1od8SxWBzYKYaYVUZa9sZklcwuu57algEZGY3zx576hYOvrIVrhcNEAGvdG4tc9ua7jdudwa8W36m6uBusG4f8q1MMbpHyU7sozENqGPceNgNZK90jlh8IMAis4x5xnbcZjewu0jrJPVqb1rJ0bkEr8mdRellj/RzOt7rw2S/wATn+C29RvyZVGWpnjv/eRNeB1xPIPjzw+FSQgIiICIiAiIgIiICIiDU+VaQtwavINjzYA75GBcwF51dYv3rpjlhP8AYtb2Rj/WjXM3s+7+JVR0w6XUBV/E1WVOFkIVbqrsYrhjVRYq7EFeNin3RLAIaOC0ZcTJlkcXEEk5dgsBYKA410jQG8UXuN/ZCnJz8luldERQ5C5nxGl5mur4bWDJ3kD6Jc4N+yG+K6YUBcptLzWNzHdPEyXvytZq74nnvK2Lw7RlpNFaa/Ef196xC2PS2P5Du5a4ic+21DGpYaKkdGI9ssTy6Nruk1wLdZ+i7yVLDq91XV0wny2L2xnK1rAWl2w247O9WuEY9zFO+MMDpOc5yNzmtcGEtyuNj86wV56V6VTyzOa1tTTljy9jQznInG1yG6szXWN+CMbTS44985hmYwwZzFzYY0c2M2UFhAuCFdiExyPjOvK4tvxsdqoCqpY5oTURl9TlZJK5mpmcgOBLb63WsTawPkrmqY4SlxcHiT1rXjUHNdsNt3C3UsGy6G1OSupTuc50R7HsdYfEGKX1BFLU82WS/o3sm7o3B58mqd0BERAREQEREBERAREQaZywj+xa3sj/AH0a5mGxnu/xOXT/ACsMvg1f1Rh3g9p/BcwM+SzvHn/NVHTBe06v4lYU6v4lbquWKu1UGKs1BcRLozBH5qWmdxhjPiwLnKIroHQ6XNh9Gf8AJY34Rl/BTkjydRmURFDiKH+XKktU4dON4fCe4i37xymBaLyv0QfRRSWuYpmuvwDmuYfNwWxWPaB9Jo7w34f7/gtQW9YvHmheFoqVvk7ZHBIIJHPjlIYXsIieSQ1so1jN9E6ws3QYTLSQ1j6jKwSQOp4252uMj3luUtDSdQtdatAW5m5wSy4zAbS2+u199lIGlGB4X6ZTso7BlRSSzxhsxDGSWlNO6R0oJuWsaHMJFnHbuJDxBF6Zzcsbmc9kayaNzg0lzAGiRl9rSAOyyztUWsbTw5g90bXZy03Ac52bKDvssXh+BUZZGOcaxz4RmeZYzzU8fNmZxZzvTac0jAAB0mt1W6ZvKihhhbFzU4mzXJsGtLRYZQWh7uDt/BYMhCAWkHYRY9hU06M1RloqWQ/KdDGXe/lAd5gqE6Rylfk5nzUIbvjllZ4vMg8nhBtCIiAiIgIiICIiAiIg1vlHizYRiI/8eR3wtzfguV4vkj3nDyauvcfp+cpKqP24ZWfExw/Fchwj1QP0z5tC2OmC9pwr6MKzp9yv2BW6qzFWaqLFVagrMKnPkzmzYbCPZdIz/Uc4eTgoKBspe5HKvNTTsBvklDurpNGr7PmsyTn+UgIiKHAWA08pecw2rbwj5z9WRJ/Cs+qNZAJI5GHY9rmHscCPxRsczVTbscOorQJm2c4cCR5qQ5GEXB2jUe3YVoWIttK8daqr8i2XprDtsbbNm9eVWimAFrbyRqG9tvvsscl9RbtX9D/YrZsOctcpqoHdvOqzd5v+JCztBJc3WNbTRuUlcl03Rq4+D45vjZk/+SjCidsW+cmlRaskZ+kgLu+KRtv3pQSaiIgIiICIiAiIgIiIPhC5Ixqgjg9XcOPOvN2n/pglrLHsF+9dJcoeKmnoZC02dJ6oHeAQS4/CD4rlusnLnucdZJNuoLY6Y+ptfSsgDA5jnZwWmxJIIJsdXffuVZlY3isRDFdVamiOS427fxKra9/xmG1zOKrMrYz84KpSTwFjCQ0EtBOpu22tWlRFE6R+Wx2HxCpS9jq4cwDi0g7ja1921b/yd40ynqWi4bFIObNrWBJ6Lu4+RKimsw24Ntq8aN1r452xkmxNrcFO/ibfjr5FZ4LKX01O5210THHtLRdXihwEREHOekzGx1lWwkANmkA4WzkhR/jFKXSuLbEX9po+89akTS+UCtrDu5+U/bctMDyTc79aqe3ezcYIUEnAfGz816bh0n0fjZ+azrivsd963ijhGKp6CQez8QWZo7t26+zWvpKqxDj3JxbwjJ02Ihu1p8/yW6cnGIGTEYA1tujKHa/mlhPDiG+CjvabBShyKYdeWonOxjRC08XPOZ3gGj4ksjLjJEtoiKHMREQEREBERAREQRxy3ZvQ4SNmdzT2llx5By52dt7vzXXelGBsraWSnebZhdrtuV4+S7+txK5h0k0XqqKZ8c8RZtyvsSx9je7H7CLX1beIC2OmN3NMXS7Vl4JHBsjWuLecjdE4jex20dmoLDwFZWnKp0WcOCWPSkJHAC2rtvqWWfTx88+SNgiadTY2kkMbq1XOs7NpXuOGV1gyNz+wOP3ArzXsqYMvOU8jA7UC5kjATwBc0AnqRkkis1qucB0ZdU10Aj3npdQG13YBc9ytqd4cA4bCLrZ9CcT9HrYJCbNzc2/3H9Ek9lwfqoq9J4giDGta3Y0Bo7ALBe0RQ8wvhNta+rDaY1/MUFXLexETmt99/QZ9pwQc66RVvOSTP/SSPf3OcXLCkqrVvu6w2BeWWAXSPQ9MHHavpXgXVZpAC1j3H5r1tKptB27lWzcEFWMiy6B5OMJ9Gw6BpFnyDn38byawD1huUdyhTRDCPSayngOsPeC/qjb0n+QI710iAoyrnnX1ERSgREQEREBERAREQFaYtQMqIJoHi7JGOjPY5pF/NXaIOO6qlfDLJE8WfG90TveY4tPmFdUz1u/Lho/6PXipaPV1QzHgJmAB47xld25loNO9XHpl23PBNLa+mj5qCocyO5OXLG8AnblztNu5fcU0kralhjqJ3SxmxLSGAXGsGzQFr0Mmo222Nu3cvMeGVLgCZ4m3F7GR1+8MabIzUZGJoGobFdQrC0lHMyTXIHi9iQXFpHUHAHxAWbjRUTtoTi3pNHE4m72eqf7zQNZ7RY96zyiTk0xjmanmnGzJrN7JB8g99yO8KW1NefOaoo15csV5ujhgB6U0mYj6EYv+0WeCkpc5cruN+lYnI1pvHAPR28C5pvIfiJH1QkbhPbTr+etVGt4ryzUV7sSrdHsngvrW22ozUvQaT2Ix6JJ1BVItS8A7lcU8BJAAzOJDWtG8k2A6zdaJT5FMI11FW4cKePydIf2B4qVVitF8JFJSQQDa1vTPGQ9J58SVlVzrlbuiIixgiIgIiICIiAiIgIiINY5R9HPT8PmiaLyt9dD/AO1l7N+sMzfrLl9pseB812OueuWPRM0tWamNv/56kl2rYyfa9vUHfKHa7gqxdfHfjTKeRXUtY2NuY3Ou1gsVG+yvoZVWnbT5/wAdHzYye/8AILLYTWOkBzMLLdtj4rHvrC02bE5w3HcfBXEGIVJ+TT+JssS2KDUQRqU1aI42KqnBJ9ayzJB17ndht43UL0YJaCRlNtY1G3eFnsBxN9NK2RnY5u5zd4P5rKnObiRdO9IRQ0M01/WEc3EOMrgcvhrd2NK5ha4klxNybm52knaVuvKrpgK+oYyK4p4RZoPzpD8txHV8kdh4rR8y2RmM1FcN4qo119So57r62Sy1q4DLbVUbdy8MIOs61XjF+pGPrYwNm1SHyTaOmap9JePVwHo8DMR0fhBzdpatUwLCJKmZkMIu951k7Gt+c5x3AfyXQmBYTHSU8cEY6LBt3ucdbnHrJU2pyq/REUuYiIgIiICIiAiIgIiICIiArDHcIhq6eSnmbmjeLdYO5zTucDrCv0Qcs6Y6Jz4dOY5BmYbmOQDovbx6jxCwkb11ljWDwVcToZ2B7D4tPtNO4qFNLOSiogLn0954tvRF3tH0mDWe1t+wLpMnow8kvbRYJVmaGfYsMaKRhIIsRqIvYjtB1hXEN27SB33+5bdOl03GlcCFiNJMaDQYozdx1OcNw4DrWKmxJ4blaSOvesRICVKFBz9a+FVWwOOweAVzBhU79TIZH+6x7vuCMWLSvRKzcGiGIvNm0VSeswytHiW2WYouS7F5P+3EQ4ySRN8gS7yTbNxqEchCy+j9BUVczYaeMyvO3c1rfae7Y1vX4XOpSLgfImbh1ZUi29kIJJ6ucePub3qU8CwKmo4hFTRNiZtNrlzjxe463HrJWck3OLDQ7RaKghyiz5nAc5Ja1z7LeDRw71sCIpchERAREQEREBERAREQEREBERAREQEREFlX4TTT/wB9BHL77Gu8yFjf+S8M/wAFB+ras+iN2wseiWHN2UVP+qj/ACVzFgNG3W2lgaeIijH4LIojNvDImjY0DsAC9oiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhMTExMTFRUXFxgTGBYXFhgVHRkbHhkZGhkXFxkYHyggHhomHRUWITEiJikrLi4uHB8zODMsNyguLisBCgoKDg0OGhAQGi8lHSYtNy01Kys3Ly0tLjMtLjItNy0yKy8tLTYtLS8tLS0tLS8tLS0tLS0tLystLSsrLS0vK//AABEIAMkA+wMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcIAQL/xABKEAACAQIEAwQFBgkKBgMAAAABAgADEQQSITEFBkETIlFhBzJxgZEUI0JSobFTYnKCkpSi0dIWF1RVssHC0+HwMzVDc7PDFSQ0/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAgEQEBAAICAwADAQAAAAAAAAAAAQIRAzESIUFRYfAT/9oADAMBAAIRAxEAPwDuMREBERAREQEREBERAREQPl5HcS4/hMOwWvicPRYi4WpVSmSPEBiDacj9LOJY8Ywiq7LlVE7rMtszEvqutmVlBtuB1lL4nRzVazHUmo53v9I2F+oAsBbSwGgED0L/ACz4b/WGC/WaX8Ufyz4b/WGC/WaP8U81HDifPk8D0t/LPhv9YYL9Zo/xST4fxKjXXPQrUqy3tmputQX8LqSJ5WahpNvl2u1M4nI7IWw7kFX7M5lZGUqbglgM9gNd7QPU4M+zm3oMrH5JXpk3C1sy+QemhP7QY+8zpMBERAREQEREBERAREQEREBERAREQEREBERAREQEREDhPPlXNx9QS6ZHo95BmYd2kcyixuQWPQ7bSuVdQT4m+gtv5Sd5prW5gdjUNOxU5wM2W3ZqNDfTa/leQ6L82PG0qI0rGWbBWfnLA1qo0jgjgNWBZVzUKqd4XzEgEIvg5IFj5ec/dYaRwJvnKgzhM1CspuL5u4T2Y8Ccu/SB0/0FVf8A9adQmGf4iqP8M6vOQegyp87iB40KP7L1bf2p1+RSIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIMTn/NHGHenXrM2TCUrhFGnbMBq9Q9aehITYga3uAA5vzZxIpxitiaDq2VwARZ1IAAYHcHUEH3yL+VoFAveZeK+jziQR8U1NOzYduSagDDPZiCp1uCxB9khByzjCCQgsCATnXQm9hv1yt8DJcpO6sxt6jfOMWfPliSPXlvFnZVPsqIfuMHlrGfg/iwEvlDxreq11In44fjWoVRVp5SQGFm1BDKVIYew/dNM8u4vbKns7RP3z9HlrGAAlFAa9vnF1toevjpM+eP5Xwy/DpfoNqqmIrIzqCaSKgLC7WZibA6m07RPPfLXIOLplauJVUo1VCKyuGKl1LJU01Uqyo3ttOjejbmKu7VMHi2zVaYzI59ZlBysjnYsptruQddiTtlfoiJAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgaPFnOTs1NmqHICOg+k3lYX18SJR+ba9F6+HwN7UUqJ21gW0A7TsrKCWZ8iiwBIAPSXKti1VjVbUkmlSXqbasR7wST9VAZzninGgGbsQodiWZ1BsGYkuKRbU3JsXPrZVsq2EsFi5r5ipvSek/zaOLEaNVYaG6qLqniC1wbEECUGtxpEBFGiovqWqEuSfrBb2Xc6XImFsPUqCoyjOUzFyWAAIAJDOfp6jTUi4JsNZDvw6vU1PdUgEE3TwJ0ILHqOgJsb9C1Dd6Z8bzFWJ1qgewIPtAvIx+OVPwzfpTK/BgNS+4tYIPC30y2p3uLWvpaZeLYd+zpBiLUsoGlNu81JClxlsy9nTp731zX3jaNWnxuqNnBHhZfL6tvAD2ADab1DmO9hUTQXsUNrdbAbAE3JNidTKvUo2sLg63J1Btppc3HTw69dpl4ZQes4poRmYkKrXOgUsTcDU6WsNydpLJe1ls6dr4Zz3hauFFCrdctMKr2LKSg7pZVuyklL2sRbcgm0wYyiadRMXS1ZGFQEEEONms3XMtwT+MZyGqlSjUyOpp1B9E2NxvodmWWzlDmwUm7OsGakwIKglsl8t3pr19TVRqem1jUd+wuIWoi1EN1dQ6nxBFwftmWVjkrFgK9DMGUfO0mBuGpub909QGPwZZZ5FIiICIiAiIgIiICIiAiIgIiICIiAiIgJrcRxIp0yxNugPmdL6/H3TZlO594saQUAkMB3d/WbTN+at/e4gV7mbjLOxope3qEA30GgpLYbaXbcliRewEq1bMzdlTvfUM4+BVG6KNQX8bgTZo0WZGKGxy3za91b5dLa53IZV691yNQJkwFJaSWFrm17dPBR5D7ZpH6weBWitr3PX6o0tdV2vb6Xrbm+sw4ttTreZa1aYcJlZ7uLoitVYeIRS2X3kBffJ2W6jXfAd0NVfswwuoC53YfWCXACnXvMQD0vNPGU6LrkNXEoL3u9JKighQvqpUzDuqo0vsNNJIor1qoFi9Sobm27G17DQ2AAsNLADwEnuZuTeywzVkSocozNYi6gL6xQ6hNLkFmYXBuLMDbZLJpj3fe3KuNcPejlJKsj3KVEOZHA0OU+IOhUgEdRIQ1Ct2DWYaKLZr3uDvoLAnXxtbXUXLCL2ufDHVawYr+LWRGanUHhfKUNtww8JSKdJqrKlNWd3IVVUXLE7ACMsdLjlvtlXHs5+cdmPdLO1nY7LuSGNhawzdPo9N2hUNlvcX2PjYkHXrqDqPA9QRJz/4XAYPA13ximtiaiFMOUc5Fqaj5sAjtFQ2LVDdCe4oNiTWOBg1nFMDM72F7FQt3WzEqDttoOq2BNgZ0126T6PuaOwrUxUPcDfohtH/ADT61tswB6sZ3NsfTDZb3N7EgEhSTYBiNAbkC2+vhPLCBkYqwsynKw/30IIPvnRuV+YMbWp/JKTXvdwXu5KnRwbnUA2JH48DtcTS4RiC9MZiCy9xiDm1HiR1sQT4G83ZFIiICIiAiIgIiICIiAiIgIiICIiAnFubeImvimsdL5R77b6DYZV/NnXONVctCqeuRgPaRYdD4+E8+4zFk9q43Icj2tcD7WEsStnB4svUdrsE0KgE2IFhSuNjYKW8QxvJWvxK6KlrAeZPw8Lkknf3DSVfh9UKmgIux0JubDSx0Hh4SVFlVSfXYZ/EKmuU/lGxI8Br1lmNyqZZTFN1uC1DQpVkenU7S/cVu+CN1t1YXF1GuugMiuG1L1WpHutUSpQF9LOy9wG+3fCj3zLw41LVHpvawuysMwe1zZgdOhsdxfS28ksBj8FjAaOMdqFQgCnUNiFOu1VtQu3de9raNOl47jJa5/6TO3GK62JO4uCD5ggjceIIMlcVh3yV2ZsQVpKC6VKzBSCoUgMEsxWo6AdCPKxObmblqvSu9dXOmuLoUzWp1B9bEUVOem9t3W4PW5mpy5wb5Th6yUKy1e3q0aWelSqHKtPNWfN2gQLqaGpNhpuSBJLCyoXlmhUqYpOzUu1MPVyjcnIy01F9AWdl30sGOwMkuJ8MwfA8IErHt+I1lF0RrKqbFGNsy0TsSLNU1AIW9p3j3HsLwGg2GwtquOcZndu9kuNGqHTpsgAvobAWB5fxSo9anRNRiauJqh3cm5IvuSfJk8haw00mcrvprGa7+q5xTiFXEVDVqsWY2F7AAAbKqjRVA0CjQCbb8b7lOnTpiiFyMxRmzOyAd65NluQGNhuATfKtrF8oBbEUbAUadK1vMrc/Zf4X3lGmbG5drYldnIqPclu6SxJJIANzc3vr+0JdvRs9M4ns6iK+ZHyg6G4GYhWGq3QODY66A3BIPOuGMDTY2bukNf33JOn1sut/jfS48qV+zxmHboKtO/5JYK37LMIHoXguKoPTtQCqqHKUAC5DvYqNvuMkJUeVxkxuKT6yK36LEf45bpFIiICIiAiIgIiICIiAiIgIiICIiBC84sRg6xHgv9tfI/76jeefqNWmCvbAmlmQVACw7uYX1XXbXTWeiOZaOfC11AuezYgWvqBmHQ+HgZ5px1wGA3B+0GWIzVq1IM602YoDUyfpvkA1JK2y6nXeSfEK47WoBsMgH5PZpl92W0qTYjpnLanXXXW9xfXXfUSYwtft1QLbtkUU8l7Gqg9UpfTtFFwV3IAI2tOvFfjly/Kt3BuE9pRFT5Q1LO4p5BYZycyoBdxe7DLqLakXuCJXOJ4Z6RC1AAWUOLEMCDexBGltDNJOP1aXcXEVaViTk7R6ViRYnLcWNj4T5meoiPWeoKCjKGYtqN+yw4OrMb6ZdBv0tOs3vtyupOll5Z59qcOejTYtUwr0ablNzSzX71LytlJTY30sd7Jxr0hDCUe1VqdStWpvUpqALMzlVFRrAdwNSqWtugXMczTlHEAHqPUqAlj/ANNTlWmAAFRnsSSFCiyjpJrmSlhu2NGth6hFBaWE7alVKsDTpKrKEdShOYObFgTc6zyZ547uunScmsZtR8XiKlaozMzPUqMSWOpZmO58yTJ/iQ/4ToVvhlUmne+1tz5qvhMJ4J2NajVRxWw7llSoAVIcKT2dRDqlQaG3UEEEz90sNbts5sa1QqNdSNdvcTb3TeElm1y5JdabXESGSqlPKlRxncE3JFrWv02t8fG8p+FCF1zkhL94jcDylqxQdlrArlvamjAgl73AHvJ/aMg8fwSpSQuxWwbLoT/eP9Yzi8d32meV6FB6FcvUYOqGytYAnXKE1JbbUab9dbTfDEOdbb7/AA1kDy5SJpnvHvECxuLgakeGUFR9nhLpyrgjUxNJbXBdAfYaiXOx6Zj7ukzHR1bhP/Nav/Yqf+SlLhKhyyc+Pxb/AFUVf0mJ/wAEt8VSIiQIiICIiAiIgIiICIiAiIgIiIHxlBBB1B0InmjmrhxoYmtRN9GIHmNgdhuLH3z0xORemngtnp4lR64ytt6y2APtK2H5glg4ziVbKx1yrbNlXQagKXsANTcAkknKfK/5xPDqyUUruoFNmCr3lJuUFRbqDcXUhhfoQdiLzmC4m9HtAtstVcpuSCrD1KqMveDqToR8L2Iq3Ec+l2d1UWBZiQASTlW+w1Jt7T42g305lxSgAV6lhtmIcj2FgTPxg8ZUqVGq1HZ3RCys7FrMSFXfoC17eUhC03eD1O+UJtnUoD0DXBUn85R8Zc88rNWueWGMlsi28t4HtcRSXI701dXqkAkLTDAu7mxAFr3J/vkzzBxDH4tQgweISl65XsajEtuWZsugu17Dx1Jkbylj0pfKqlSmzhaDKUzBVzORRKOLHX54m4sQA24JkpxTnJKtn7FxVVSEYmm2RjQqUrhggYgvV7Sx601tvp5/GX3XlvHhZLn2r/B++K2HJ7tai5HlVpI1Wk4I2IyMt/BjKZUrMxuzMT4kk/fLlw5+xp18UdFp03o0z416qFFVb75UZ3Ph3fGUmb4/rrwff7+9aZatd2tmZmttck/fNl+G1l7NnSoEqWyOBmDEgEBTsW1Gl7jrNICXvkPB1g6VCahy5kp0jUKqTmzXGhAVWGfUFboSdp0elucNwJppZtSvc21zmxe5Ivpa1umbzMvvo8wAz9q2UaEqWIAv/wAMHXp36nXcKPpCQFe9erYMLa9891QN3qG/qoACfJVA6S4YfBuAlIUUemzKADlLBMuWorG5ALCoqWHWoT101eiTdX3hHCadAPluWc5nY7k9PYBc2H37yQmHB0MiKmmgA0Fh52HQeUzTIREQEREBERAREQEREBERAREQEREBIbm/hPynC1KdrtbOnjmHQe0XX86TMQPLHFsEUbUaH4HzHkfsvaRNekCLNqAO7pe5vcA7dSdevtnaebOXaZxFSi3dV71KTgXy5r3FtiA1+74ZdjYzlnF+GGjVqUyVYoxU5TmHnbra9xYgHQ6TSKnX4ZUvorHdiQosBk7TppfIGa3gPbbUxJXMcgIW+gJubecumB4nUpU6lJRTem9yUqIr2YgDMCdb90aHQ2Eg62CU+K2Wyhtbk2uBYAbszDe1rXJ1OVSXCuJ0lwbHEq57WstIPSZVqZaSljmzgqwBq09CAT4mwt8fiOAQBsuOq3Fwr9lQVtSPXQFrXBGltpH18KzUqVEABaYqVCb+szgEseg7qUxbfunroJnmDgWLajgxVpKgVTRzBk1f1VXRzey00JJA1Zh4AZuEcrxY2q1xrjL4grcLTpoCtOigypTBNzlHUk6ljck79Jr4KgHzIFdnIumW30blrjr3QdvDY3ktg+X75SzruQQoLk+4ajff90tHA+H0sOyv2asUNwavzh67ILWNzcG62tNSOkkk1EHy/wArlirVVbK2W1PL32Oh0F9FtrfS4PQay7Zgi5EsSRlYrsF/B07fR8T10A03+VMVUru2UEs+jWAzMPAkAAL5Cw6m+8tfJXAkqVSM4LpqzLYhLEXWmTo1TVbtayhwVJOs10N/kzl4gZ29YsFOuxBv2Y01sRmfXdMn1peqHCaaVDUUEEjUXOXS9jbx7zfGMCq3IQWSn3F8zux136C+9803pmqREQEREBERAREQEREBERAREQEREBERAREQK5zzgM9DtVHfokuPyPpj4AN+aJQeKcPw+MfCmtmQM4oNVpFVdWa+QNmUhlYm2o0tpa9j2Aicn4nwhsPiHwr3WhXulKp0BJvTIP1kcKD5XPWWIgOa/RtiMKrVVK1qK6l17jqL/Sp9bXAupJP1RKW2HINviDoemh+MuHNPpWxbCvhGw1IW+ZdiWDZlsHNgbWzq1vK0qB5vq5WU0KBBIbUMSLZrWudB3j9kzblL6jcmNnuvwMKPq/D/AEmZMP5MfifKaLcdJN/k9K/5VX+LyE+DjrfgU/Sf98u/0mv2m6OHbwsPMhfvm/hsKt7FrkfRT37sRpt4H4ays0+YmG2Ho+81G/tNNo84VcqL2NEBL2sGG5JN9fEmZuWXyNTHH7XWcByWzYY1KlQ0aTUw4SgfnXuFZA1VgcpzW7qg6nRuk+ckURhqDmn3nquKNPcXVGKL7AahqH2EHXeV/gXpExGKoPhjTp0zTp00pspY5muKal77WJV9PqmXTkDCCqwrBWFCiopUM30iBlzDxyrpfW5LdRNua7YLDimioDew1Pidyx8yST75niJFIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICa+OwVOsjU6qK6NupH2+R8xqJsRA8286cNJ4piKFJC7tVOW5GZjkDnU2F9zKvRdT0Eu/ODW4zUPf0xdMWQ2Yg0qRspHUhrD2yj1Rao3resw73rbn1vxvHzlG12A8p8OGEIZ+80I+LhV8pt0OG5zlppnezEKBcnKpY29ymYEOsmOGG1VDeoLLUN6V84tTcgrbwOp8rwJ30O8Fo4qvX7VbrTUdzZWuSGVx1FunXUG4Np3VEAAAAAAsANAB0AE496BFvUxref3sf3GdjkUiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiBwH0hUSOM1QQbPXwzAKbEg0aSmx6NdTY30lFxQ+eqaMD2jghzdgcxuHPVvHzvOhel9cnFaZI0ZcM+ux+cZCP2B56zn/Ely4muvhWqjcnaow3bU+06nrKMkCYu1E+dqIRsUzJrhb2dmzOmWlWOZFzFfmnAJFj3bkAnoD03lfSrrJjhOJA7c3tbDVje5FrgLuAdO9ax3uRcEiB0T0B0+7jW8WQW99WdanMPQHS/+nWe3rVct/Gyhv8A2ffOnyKREQEREBERAREQEREBERAREQEREBERAREQEREBERA1cRw6i7rUelTd0DKrsisyhvWCki4B6yC4x6P+G4mp2lbCqXO7I9SlfYd7smUE2AFzLPEClfzU8J/orfrGJ/zI/mp4T/RW/WMT/mS6xApX81PCf6M36xif8yTPA+UcFhARQw6LexLNeo2l7d+oS2lzpeTkQNfAYClRXJRppTS5bKihBcm5Nl0uTNiIgIiICIiAiIgIiICIiAiIgf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhMSExAVFhAVEBASFRAVEREVFRESFRIYFxUVFRYYHSggGBolGxUVIjEhJSkrLy4uFx8zODMsNygtLi0BCgoKDg0OFQ8PFS0dFR0tLS0rLS0tLS0tLS0tLS0tLSsyKy0tNy0tLS0tLS0tNSsrLSsrKy0tLS0vNy02LS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQECAwQGBwj/xABNEAACAQICBQcIBQcICwAAAAAAAQIDEQQhBRIxQVEGEyJhcYGhBxQyUnKRscFikqLR8CNCgrLC0uEXJTNTVJWj1BUkQ0RjZHODk6Sz/8QAFgEBAQEAAAAAAAAAAAAAAAAAAAEC/8QAFhEBAQEAAAAAAAAAAAAAAAAAABEB/9oADAMBAAIRAxEAPwD3EAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEfjtN4ahlUrwjL1dZOX1Vn4EVU5c4JbJzfZSn87AdKDlXy+wnCq/wBBfvFj8oOF9St9SH74HWg5D+ULDf1Vb6tP98zUeX2CeUpTh7VNv9S4HUg1dH6So4ha1GrCaW3Vkm49UltT7TaAAAAAAAAAAAAAAAAAAAAAAAAAAHmPlQ5ZShLzTD1XGSzr1YSs45ZUoyWae926lxQHf6V0zQwsXOtVjBK2Td5O+xRis28ns4HlvKXl3VxMnGlJ0sPuinac1xnJbOxZcbnlq0hJznLVk25ek4ybkut9t33mwsbP1JfVYHQ+cdZTznrIB4up6r9xR4up6r9wWug856yqr/SOceMqeq/qinjJt2aaW9uLXcCuiWMjnad7cH8DC8c1syNTBailFu1rrw2FmPspyS2Xuu9X+YEngdOVKNSNSE3Gcdk45PsfFdWw9s5HcpI4+jrZKtCyqQWzPZOP0Xn2Wa63883Oi5EafeDxMJ36F9Wa402+l7smutBH0ICkZJpNO6aunxRUAAAAAAAAAAAAAAAAAAABZWqxhFylJRjFOUpN2UYpXbb3IvPLvLRyldKMMHTfSlHnanXHWapxfVeMpNfQXECM5a+VKTk6eGk4U9mslarUXG7/AKOL3L0uzYebVNOttvUV22223Jtt3bb3shZzbd27t5t72y24EtLTU+EPc/vMUtKze9e5EbctA33pGfreEfuKLSEt7/VXyNAAScdILfr/AGH8iSwuEeIi3SqKTW2Elqv8dxzDNrRuPlh6kakdqea9aO9MCZpwkrxkmpxdnF7U+DL3K+d+rrTWVmdPp7CQm6FaOyolFvinFyg/Br9IhIaLbnPOy6OX0s8+9L7IGkmXwlZplk4OLae1Nr3FUB9BeTnSXnGBpXd5U70X2Rtq/YcTpzxTyY8o3hq0KMn+RrzVN/RqPKnJfB9qe49rAAAAAAAAAAAAAAAAAAAAfN/lUxbqaUxmd4w5unHqUaFO6+tKfvPpA+WuVld1MTj6j34zEJeyq84x+zFAc0CiZcvDevmUClvc9/Bl+rsV+uMtz6vxsZTi7ZbJR2W61w+Ty3lRZKyzvlvfXwQlG27NpNLqaun7szZw2MqUZa9KTjU1Woatrxi1m7vY8r379m2ex1BVtKKnUvKN8NzrlJt1FSwkJTi2881B335tgctKD1VLVeo20p2erJralLY2Y2yf0HpSrXrShVqSdGvTxLqUbvm/6CpUUow9GDjKMZJpK1jnYvZ2EV6lSlfA4D/s+EJfcR2kcXzXOStfpQVut3S+Jv08sFo5cY0n/gzZBcoZdGf/AFIeFyDHpBvXu1bWjGVu63xTMMZGbTGGcpQ6TVqcVb9KRprBP134ASFDEasdZOzjOEk+Dva/ifTmFxEakIzi01KMZZO+1XPlqjgU8nKVntz+47zyaUo0MbQ1LrWdSEs/STpysn+lqvuA9uAAAAAAAAAAAAAAAAAAFG7ZnyTi8RzlGdTfUra/1un8z6p05X5vDYifqYetP6tNv5Hyhilq4emvpPwjb5AR6MtN8PSW7brK2fbl4GFq9+w6PGaYw9SnNKi1UailWaptximnqw3q9mlbZtWquiqmoVONtv5OTye105/PZ3pcVlRqV7f7Rdlpxt15PL3rxlNM6VVe+rTcdec5Rp5ZxlTpRUpcGubk11W2JZxFTNKKaerda7yV2/Rj1Xva/FvJFRZWfRkk73T1p+s3uXV8dp0eJxtNaUqTlNKk6+IpKazUYTpzoqpltitZS7F2EPovRzxElFVKUGpQhq1ajjrSlKyUYpOUnfbllkY4YCcq0qEbSnrVI610o2p6znKUpejFKLbb2JBpv4bBywcqk60oqaw1VUlGrTqc/OvTnRjKDg2nCKlKTeWyPFECb9bRlqPPU6tOpBOCqKHOKdGc1lrxnGOTatrK6urX2EbJ7SD1WurYbRq4U6b/APWl95zWm5X1vaT8Ujp9LdGOCj6uHT91KC+ZB4GKnWqqSTjzUMmrp605/ukFNIO8l7Efm/maxixtH8pPN21nld8THGh1v3sDeoPNdp3vIDRdarXo1YU3zUKilKq8opLak36T3WXE88w2HV+5/A958lMv5soLg6y/xZP5gdcAAAAAAAAAAAAAAAAAAOf8oNXV0Zj3v8yxKXbKm0vifMelHanSXtvxPpLypVNXRWMfGnGP16kY/M+a9MPo0vYb97AjkzLF7Mrv82O7tf48DAmXa3jtfyKms0p7c9vp1Nrl9GPV8exGN2yvdLdFbk/znx+fUrFut/BfNjW25X9Zvf1Lh2lEpybhrY3CJ+ksXhc90oKrFvPs96LdF1W6eNqLfhM+p1cZh4y98ZTXZcxaEx0cPXpVZJyjTm5q1r31XZZ9bRZonGQpucasZOlVo8zVUGlNWnCcakL5OSnTi7ParrK+Qxk0Zfmca93m1GPa5Y2g14RkRElck6+NpwpToUddxqVYTnWqKMJThTX5OChGUlHpSm30ne0NlrGlgYa1WnH1qtOPvmkZV6jyldq1GPq4ea8YL5ELoRXq1pdVGPu13+0iS5VVf9al9GjHxlL7kc5o3ETVZxi7KVW7yWajShl4sDPXzlL2pfEojAqc41ZRlPWXTey1rSSXzNiwGfBLpo9s8kj/AJtpe3V/WPDY1nBppZ3PZfJDpCPm3mryqU71PajJ527G0n2oDvwAAAAAAAAAAAAAAAAABxXljnbROI654Ve/FUz5000/6Jf8JH0L5an/ADVU66+F/wDvB/I+edObab3c0gI65S5Y2UAyXKaxa4vJ2dndp2dmlttxKSTWbTSte7TV1x7M0Wi65Rssf4/HcyxsgyXJDkvS18Zho/8AMUn9WWt8iKuT/IRXx1B7oupL3U5fOwHUcoat8TWfDUj7o3/aIfQi1q9+uq/tuPyNjSGIUqtaV8nWl9no/smHQr5tqpJNJ0VNNrLpSvt7X4gZIqVWsowg5TqScIxirty1m0kuu79xixGI5ucoT6M4ScZQeTjKLs01uaZgqTaV4yams4yjJxalutJbO0xLA6nRas4txccsmnZrLLbwA2HjIu2avst+Ow9D8nOlFHFUXfbJQayzVRam3blLVfceazwl9m3d2kxyYxjp1qctlpLue34pAfUACAAAAAAAAAAAAAAAAAHO+ULREsZo7E0YK9R01UhHfKpSkqkYrtcEu8+aa1JV6aSfTjnHrjw/HUfXB435SfJ1KnOpjcLG9GTlVrUFlKlLbOpT4xeba2p3tdOyDw+pScXZqz4MscTsY4JTXpX6pJOxinoJP1fqv7wIT/S0snzcLpWu9bNWimtuStG1tlmzE9Izta0bKOqst1opX4+gtpMy5Pda8fvMUuT74rxAhZYuWeSzbe/e5P4yZqWOhloF8V4mOWhX6y938QILVJnk/VdFyqr03Fwh3+lLsWRV6KS2yv3JGVUml0Yt9n8QKSi5WhF5y6N+F9sn4s6DScrU4UoU3UlOUKcKUYuUpWtZKKzbulkiPwOE1OlL02rdUVwX3luPx0qTTV7rY88uxrYwI1YyCdnRV72tbNNO2ziTEYEdhMdrTS1Nr2qOzrZLJAKUM12owaMi5VUltdfVX/kN3DrpL3nQ+SHk3PFYmNeUfyFCfOSlbKdbbGC4tOzfUlxQHvsVZLsKgAAAAAAAAAAAAAAAAAAAB4Ty95PxwmKlGMbUprnKeXoxk84r2Wmuyx59ovSCo15c9RniKcVKPNLEVKFp3Vpa8E3kk8us+juX/JuWOpQ5rV56nJtaztrQkulG+53UX3HjGlOTFbC1Juth5Q15JqTXRk9W1ozWTfRb2hWjLTuEezRlddmlan7VFmvPS2Gf+54tdmk6XzwhuLBR4cCnmC4BI0HpHDf2TGf3lR/yZZLHYT+x4z+86P8AlCS8xXAeYLgCI7z3Cy6MMHXhNtJVKmOhVjHPfBUIXvs2q179RnpUlkutGy9Hx4ZmCk7NOzsmviBfWhquxozjWnPVpwTyvnOnBW9qcku65v4qrrSutlrIh6qrXdrW9qIG5Tp1oStVillfo1KU/GnJ2NhGtg4zS6e2+Wd8jZQE3yN0asVi6NGSvCU+ms84JOU1dZq8Ytd59A4LCU6MI06VOMKcVaMIRUYxXBJHk/kb0frYipWayp0rL2qjsvsxl7z18AAAAAAAAAAAAAAAAAAAAAAGhpzRVPF0Z0ai6MllLfCS9GcetP7jfAHzvjsHPD1Z0aitUpycX18GupqzXU0Wo9M8qHJx1YLF043qUo2qxX59JZ63bHPub4I8vhMKyMtYci1yCrJ/j8fjvME1dNb9q7VtRmmzXkER2LnFKzlbrI6FBNpc9tfq/wASR0pBtqWpGUXx1Vqy3rN95Zg6G904x4NWfwCNinCyS4K1y9LcVJfkvoeWMxFOitkpdKXqwWc5dyv3tAeu+TDRfMYKMmrSrSdX9H0Yd2qr/pHXFlKmoRUYq0YpRSWxJKySLwAAAAAAAAAAAAAAAWSYF1ymsYpMwzmwNrXKc4aEqrMMsQ+DAlecHOohZYqXBmGeNn6jAnnVR5Ny35HPDylXw8dbDtuUqcVd0Hvst8Ph2ZnZ1NI1N1NmnW0pifzaPvbA8j5wo5nZ6Z0PVxDb80pRk89eMZxk3xerJJvtTIR8jsTw8AtQrkWSJtci8V1l65EYvq7wjnJ22SV4vanv/iXQoZdHOO627qsdF/J/i5fnwXdJm1hfJtXvd4lL2YP7wOXhhm93BW3tvYkj2Lye6BjgqTqVLLEVErr+qp7VDte19y3XIbRPIjmWpc7JzWyWqrrsve3cdFR0S1tnN94HTedR4lViFxISngrb5e82qeHtx94EoqqLlI06dM2IIDMCiKgAAAAAAAACjRUAWOJY6ZmAGu6KKcwuBsWFgNbzdcCnmy4G1YWA1fNVwHmq4G1YWA1PNVwK+argbVhYDV82XAebLgbVhYDW83XArzC4GxYWAwcyuA5pGewsBh5ouUDJYqBjUS9IqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEBIQEhMVFhIWGRgVFRcVFRcYGBUXGBUXGBcaFhgYHSggGBolHRcWIzEhJSkrLi4uGCAzODMuNygtLisBCgoKDg0OGxAQGi0fICM3LS0rLS0rLS0rLS0tLS0tLS0tKy0tLS0tLS0tLS0tLS0tKy0tLS0tLS0tLS0tLTUtLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQECAwj/xABGEAABBAADBAYFCQYFAwUAAAABAAIDEQQSIQUGMUEHEyJRYYEycXKRsRQjNUJSYoKhsjNzdJLB8DRDotHhFSSzCBdTwuL/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQMEAgX/xAAsEQACAgEEAgIABAcBAAAAAAAAAQIRAwQSITEyQVFhEyKBsQVxkaHB0eEU/9oADAMBAAIRAxEAPwC8UREAREQBERAEREARF5yzNaLc4NHeSB8UB6ItXNvDhm8ZWn2bd+kLFk3uwoB7Tj4Bp199KVFv0RuRvkUOxW/rG+hh5X/iiH/2JWlm6UXXTcJXfnlIrusCPny5rtYZvpHDyxXssu0tVa/pHxLhbY4WjX0hISPWCW/2Fg4rpDxfKSNnssbx/HfwXf8A5pnP48C4EVMRdIuKDv27HeBZHX+kA/mt5s3pNd/nxNcPtREg/wArrB/mCh6ea+ws0Sy0Ws2Pt2DEtuGQOPNp0cPW06+fBbNVNVwy1NPoIiKCQiIgCIiAIiIAiIgCIiAIiIAiLwxmLZEwvkcGtHEn+9T4ID2K0m2N54ILbed4+q3l7R4D4qI7xb4ySkxw2yPvsB7x49w8AonIXc7WiGBvsonmS6JTtLfWd9hhEbfu8fNx191LQT497zbnEnvJJPvKwwuwC0RxRXRS8jZ6GQrqZPFcErGe613VHN2ejpyvTBbMmxLwyFmdw4ngGjkXO5Dj49yx443PcI42l73aNa0WT7lZvR7u7NhmyyT0HyZQGA3la2+JGlku5XwVWTJsXHZZCG5kA3n3H2hC3OwCaMC3dTedo59g6uHs2SoAYyTdknXiCCavhpxB40vq4hQvfncGLGNdNCGxYsah9dmQjlIB7s/EeNUqY523+YteJLooUBw7+/y7xdf7r2jxBac1jQa2Rz+tYcS7h4r3xmz3QyOhljeyVl2HMbenpC9cw5g6iqPJeWUjUCTSiPRHYPHhyHhfLz0opZs9nbVcx2dr8rmkU5riDevAjQq19z9+hIWwYohsh0bJwDjwp4+q7x4HwVLa823Wvak+ofAcQDzHd6ry8PiwAGdga0Tmu2kaevl/ZFpwU1yQm48o+mgVyq96Pd7c+XCzOs/5LybzDkwnma4Hnw7rsJYJwcHTNcJqStBERcnQREQBERAEREAREQBEXBQGLtXaMeHifNK4NYwWSfgPFfNO/nSZNjJSISWQiw2ruvDu9fE+A0Ul/wDUBvWXTN2dG6msAdLXMng33f3qoLJuXLBhY8XiaayTQMunMsEtLxWhIBNcufcuZ5o4q3Om+v8AgUXIjTsY8my4k+NLbbI3nmhI7Vs5tOrSPVy9YrzWpwgbnGb0deP5WpNtnc0swrMVE7MC0Pkb9lpF208wAdff6olqI45JN1fRZHBLJFtK67JrsrHsxEYlj9Tm82n/AG7isylW+4u0DFPV9h1B48CaB8iR7yrIm0tepiybo8nm5IbWY8zuS82tJIABJOgA4kngB4opP0ebN63GCQjswjP+I6M/qfwpOVKyYq3RONz93G4WK3AGd4uR3d9xv3R+Z1UhXAXK89u3bNiVKgiIoJIb0i7ntxsPWxgfKYhbNaEgGvVurv1o8ifEqkXxAWDEQWu0DjR1uw7XQijr90g8Df0+VUXSvu42KZuOYwlkrg2QNJGWQ8Hca7X6gCVowT52soyw9orsYeiPmm6EtIJ1I1q9OPCjpd+Jr2w7XUNIxxa6+dEVfDXXiPtfeXYQW1p6sE6sdZrXlo46E8vXpxK4ijJI+aZ2gRqW6kE6eDtT/qW2ii0ZeFxmoc5zcwDbcNO0L10+t46eiO9qvDczbvyrDguPzrKbJ4nk7zr3gqimB5oiNtkZ21QJLfSFVxv6p771pSzdLa3yaeOXMOqfTX5brIa1IPAg6+VKvNj3x+0Mc9si6UXVptdl5xuCIiAIiIAiIgCIiALwxuIEcb5DwY0uPkLXutPve6sDiD9w/EKV2Q+j563W2d/1Dbk08ozMje6Z98HEODWNPhmo13NKxOkDeGTaGObhITcLZBFEL0kkLsheT4k0O4esrabi7Rjw+zdrYgPa2ckgAkZrLXCIgc7e938qrfBzujkjkjNPY5rmHTRzSC066cQOK87HD8XVzySXhUY/qrb/AL0XN7caivfZbO3+jmLA7NxBe0zyBvWNxDGkGNwLRkczMewb9KuBN5coJjXRxt4iT5FIbY++rv6rqst9ki9O/wBale9e+WPmwksDo8JHHKDGZ2yPLXjqBM4RkjKMzSAL+1p3iodn4kxyxyjixzX/AMpB/otGfTRyQlH55/k/onBmeOakvX7Eph2SIdrHC8I5CWt9iRunuuvJTSOUugie70iMrvabofzv3KKba2xFPtTCSwEkNDASQW65nOGhF6Bw1UqJ7MoHAYnEAeUr1q/h8pvGt6p1yUa6MVN7er4Otqzei7DVhpJOb5K8mtFfmXKrlbnRv9Hs9uT9ZWrP4mfEvzEpREWM0hERAFgbd2YzE4eXDv8ARkaW+o8iPEGj5LPXBS6B83zQuZLLDM/5z9m8aNOZunHvtoF9z2nkvOUMzXnkNu5E66GiNNCCKI7ge9TXpT2WWYxsjGtrEsNk0KkirUHkcuvrHgopPNK75wZLIE3E2HtAD2+0Q5gI5g+tepjluimYJKnRhxZOz2puJNi+Ni3DTiRX87r4LKwOoDWh7i0ZqANkEHMa5iw1wrWnVyXV8krbIcymEP0Lj2Xg2W86/aHzPeKyI3yNkaTIwGN+XQHRsvMXwFud/J4K04Lj3C2l12DYD6cXzTvwgZT/AC17ipIqu6OMZ1eLdBmtsjaBqrc0B7dDw7JKtBeXmhtmzbhluicoiKotCIiAIiIAiIgC0m+n0fifYPxC3a0m+v0fiv3Z+IUrsh9HyrgJcKcLjI5m5cTbZMPLTjZa4h8ZA0AIJNnTv4BYGzdkzzCR8MEkrIhnlLGkhjRZtxHoigfcVhy+kfWfirx6N94YJNkYrAYeDq3x4KeXEPJ/aSkFgN8TbdTfDQDQLhRq/skiMGF2ntXDSNwmBaMOXg5mvytGUNGRhmkAIBY3gCRVXWigm0tny4eV8E7HRysNOa4UQav3EEG+YKsHanSLiGYTZ2H2a6SCOOIRuGWMullblDjwPZJJNcy42OC9OneziMA+UAYp2EYcQBydZ5ctc48gugROTbHynHYeTI1mXKwBvcHOy+4EN/Cp630Jf4nEf+V6qzYn+Jh9sfFWm30Zf4nEf+Ryu0yUXSKtRJyVs6K3Ojb6PZ7Un6yqjVudG30ez25P1lXajxK8PkSlERYzSEREAREQEQ6UMAyTAOkeCRC4S9m7rVrqrwdfkqlja0xOb1b87KbwdYmc7KDr9UkcPHVX7tfCCaCaE8JGOZ/M0hUJs8NLiHznMRlOrRWWjmPiHGTXwW7SyuLRlzrmzGLGmy2B1FwyaaAtBc9h7XAtYPee9doYhpWHJBfbbaLLQQyRp19o14nuTPHpc5Atziezpl9Bw7razzLlxG5mgMzg7Umq7LzTTWnPM81zrxWszm/2djsj8NiA0tAd1l2LLc95TRuw0m+N5uOtK7mlUHgTA6HR5zAjLfDO8AuYNOIBb7ldW7WK6zCYeTmY236wKP5grFq49Mv0z5aNoiIsZrCIiAIiIAiIgC0m+v0fifYPxC3a0m+n0fifYPxCldkPo+OpfSPrPxVkdC/o7X/gZfgo7uVuXPtPEvhhIY1nalkdeVgJIGg4uNGh4HuUl2rsDG7CZPNA5s2HxDHYaSUxEZRZadA45LIIBJ100UEkn6NdzTh4GY7EYd02JiZ1mGgZR1l7THOvQO05mmg3qaqtekbDbQ+VnE7RiMck9ljSWkBraAa3KTTWggePHvW4b0obSighdHKxpILD81GezEGtZxHcVYOH3Umxj4Mbtmf5RHG3/t4GQiJ0r3gOc1wABLBQ40DRJIbq6InUu/6fsURsb/ERe234q1AOzL/Ez/rKie+mwhg9sdU0Na17mzNYy8sTZHEiME8cvC9PUFLPqy/xM/63LRg8ijN4nRW50bfR7Pbk/WVUatzo2/wDPbk/WVbqPErw+RKURFjNIREQBERAcFURtDDPjxszWtZljfMeduY+V7XA6crb5K+CqR30hDdp4g9U55D+tu9C3qYrHHgHEEj1LVpfJmfUdI0+IwkjXOiLmGizDk0efoOPm4rlhlJJzMBe7KeydDGHPaR4Vl/JdJsMGuNw+jma8kj67gY3XfLLqfEry+S/V6gXkEJ1FCXKADx55h50t6MpsMNC90b7c0Aky0AdHQ0wjU8w0V6z5ZWD2viGOMbJ5WNaLa0PIaNXE6cOK18GEL84bAG56aCSAA6NznuB1PEAfFdZY7mDj6FdrWudge7MoaXsjm+C7919pnEYSKYjtOFO0q3NJa4jwJBW2XjhIWsY1jGhrGimtaKAA4AAL2XkPvg9JdBERQSEREAREQBaTfT6PxPsH4hbtaTfT/AYn2D8QpXZD6KQ3NEx3b2sMJm+UdeM+T0+pyx5qrXh1nlmWX0T46bD7Lx2IxQL9nMygRSAFsgdmEoizcyXR/dJJHE2IHuZvliNmYl8sIDmv7MkbryyAE1w1DhZo+J71YXTrvXI7DYTAOaI5ZGtxOJY1xIZYPVxk0Lo5ifZaoJMl+D2NgGt2qGyTQaPwMTh2DJIC5wFjXIWcXejfM5Vibg70Nx21HbQ2ljI4hH83hsOZC1mZ55AmiBQ1dxdR+qFCdobqNw2E2dicXiHViXBww7W6xwFwL5A4uoEtLTWX63gtxvt0UYmHFtbs+GWfCyBpjeC11EgZhI4UGi9Q40KI10KhKiW7PPpS2diItul87s4lc2SFwBA6q8rWAci3LR9/NbsehJ/ETfrK69MB6ubY2De8PnggaJXcbJ6toJPiY3nzXYehJ/ES/qK0YPIozeJ0Ktvo2+j2e3J+sqpCrb6Nvo9ntyfrKs1HicYfIlSIiyGkIiIAiIgCpXpELRtKbtSA9kkNFgMMMdnh4AnwCukqlekGU/9QxIEjRfzZaRrRw7Hd/PJQ9a06XzKM/iabGZc7g502rqdebgZXZOX2ar1rEDu902YsF6H9sAyr08L7tFk4nEFxJMzNbLgG8Ork7LBr3SfkvJ2LcMzuuZYb1ug4vLRpx5dWPevQRkPXDUc4YZyXB2SswObLKJAKHpZQxdsR+1aRdZXV3cAe1fP/lBiHgvAmYS3sh2Xh1rnhzuP3yj7MrRf1TpXHTj5cPxBQ+iPZ9AwHsj1Bd11jGgXZeOemgiIgCIiAIiIAtJvp9H4n2D8Qt2tJvp9H4n2D8QpXZD6Pj9mIdHMJGGnsfnaSAac11iwbB1HA6KT7s4OfbO1424h5kdI4OnfQHzUYGbRoAb2QGiuZCic3pO9Z+KsLoHxzI9rBjzXXQyQsP3yWvHmchA8SFBJZe92wNk7Xnfh4sWBj4mdXGGvJawMvs5PRcASby6jyVY7M6S9qbNY/Z9xu6kuiAlYXOiyktytcCLAI0u/ct/uN0YbQw22IpZWhsEDy8zZ21IADQaLzW69QRoL86/6QMeyfamNmjoxumflI4OAOXMPA1fmgMJ+05cTjBiJ3mSV72lznVZNgctAAAAANBSsxv7N/wC/l+JVUbO/bR+034q12fs3/v5Ffg8irN4nUq3Ojb6PZ7cn6yqjVudG30ez25P1lWZ/Erw+RKURFkNIREQBERAcFUdvTJm2hinZGuBkA1IBAicATw55mjRXhI4AEngNSvnkStfM6R0b87pnvdx1a+qbV0SXluniFq0q5bM+ofCR3nxD9ZOrj4snIzD6zQA3h3scjQ9rgOqjOWSiMzaOe6HDgOtZ/KvFoj0+ZkLTma4U77RcwcfqsL/cV5EMLSerkJMeh7f7UaF13prH+S3oyGXhpzGwO6lhOV0N5m6kmJ5Po8gD5lZGAGfGRx1zaL59p4bXgvPBiE56D6OUx+nQeG9pxvgD1jFtN0sOH7Qg7JvMCSeBDSXCvAZSPf3LmbqLJiuS7AuVwFyvIPSCIiAIiIAiIgC0m+v0fifYPxC3a0m+v0fifYPxCmPaIl0fIsezpJBJI0DK0us33Cz+SxInlrg5pIcCCCDRBGoII4FbzZmzmyw4lxJzsstAOg0J4c7y15LRN4hW5MTjCMvn/dBO3RL8d0m7Ulw5wz8U4sIyuIaxr3N7nPADq+PNQ9TDamMiOFLhXbFNGl3/APlRFjSSAOJ0HrKzxlZu12kjppqMZqdq+Pszm4CSKTDue0gSZZGXzaXaH+vmFZ0X7N/7+T+iiO9+xThZsGwyukGRrRmAGTK7UCvq27TmpbAfmnfvn/AK/TO3Z4/4scuJTi7TCtzo2+j2e3J+sqo1bnRt9Hs9uT9ZV2fxJw+RKURFkNQREQBERAaPfXHCHAYmQmuwWA9xf2B+pUa17C1zjOS/Kwg2NJHVmrTg3q236wrM6V9pOrD4SOs7y6R18A1rXAX6yT5tVZ9VII9CwAxAnQ6NFeHFwAP4St+mjUb+TJmdyo465lgtnNZxV5eDqLnHw7cn8q74eQANDcRQa57ReW8lZsx15mM+8rpP1lyFzY67DniqFWKZw+6/+degikL8rooyRKwk2KstaGtOnC8pPrK1FBlQsADSJMxIcCBVU05Yy6uZaGnyUn6LcMX4p0hOZrGuc08hZoAeTnqKShzI3NIZbcw0rXn2iBxoAV91WV0U4DLh5JSNXODfJos14W78lRqJVBneJXMnQXKIvNN4REQBERAEREAWl3yF4DED7n9Qt0sLbWG6zDyxji5jgPXWn50pXZEuj5L3ZxfV4p8Z4PJb+IHT+o81rtt7PMMzm/VOrD3tP+3BdtvwGLFzN1BDyR30TmafcQs3HbXGIijY8U9ptx79K7Pr4lboThkwPFJ048x/yjjm7Xsx8ZBEIy5rfqtINu4uJrQ94aT5Cln7gbGOIxbHkfNwkSPPKwbY3zI9wK0GGZmeGE6E/DgpTs7eX5FDLDE0F79Wm/QdVZj3nw8F5sk0qRx/EMuScHHCqk1X0vsb9bQE20w1ptsRbH+IG3/mSPJS2EfNu/fP/IAH81WGyAXYmOzdusk+8kqzYXf9vEeby+U/jdY+P5LTpo06+CtYo4cMca6VI7Wrc6Nvo9ntyfrKp7MrY6LJ82CLebJHD3hrh8Vbn8ScPkTJERZDUEREAXDiuVDek3eAYfCOia/LNOHMZXFrQ35xwHfWg8XBTFbnSIk6VlZ727U+W42SRrHEdtkLrIDmRkNBGvo6Pd66C0szRRBhdpGK1NEkm3nX0RyH3iu0JDW6yahuVlUKFkHLY5uPpeAJ4heZPGpRXYZqBWUC9a4NAvTwcO6/UiklSMLd8nd3VjP2JWjsAWXWPvO7yOQ72eKyYWgutvXdXm7YDndi2/ar0jThZ4DIea8s8nHO11uDnWDZ6sE0a5AgihxIHGws2JzgHZiKsueRWr7Ng9wbwH/AVhwzjEaua3tVd3y17zz0+Nq8928D1OFiiqiG272ndp35kqo9wdmnE4xrnAFgOcj7jaIHmSB5q7wsOqlykadPH2coiLIaQiIgCIiAIiIAuCuUQHzf047sGHFnEsHYdRd4AnQ++2/y96q1fYu92wG4uB0ZALgDlvgbFOa7wPxAK+Xd7d1JcJK7suMdkWRqw/Zf3Hx4FdtWrX6nCdOmRxEpZODwL5HBjGkk6BcHZmbuYR0kwY3i7s33XxPkLVnYporK30WgNb6hoFr9g7GbhI60Mzh2j9kdw/v+iz7W7Dj2rkx5Z7nwYinPRRtDLPLhydJGh7faZd+ZDv8ASoRI2ivbZ2NdDNHOz0mODh494PgRY811kjaoiDp2fQaKJYTpBwTnNa5z4yRdvZ2eXFwsAWas0NCpWxwIsagrA012bE0+jsiLxxeKZGx0kjgxjQXOc40GgcSSVBJ57Sx8cET5pXBsbAXOJ5AfE+C+ft59uOxmJkxDswbQY1paewzWgDWhN68yb7gtvv8Ab3vxrxHEJGYaPtiwB1pHoOc08u5p8xfCKPmcL1f2dTbWm3O79O6hepo6DQLZhx7eX2Zsk74R3mxYNjPQsNALBwaNBVaDw53rodOY5mu4uZq4ntAcG8L7hrdervdXiJnDXObboM0Z9I87uhxOpvidF74YkkNa5nHI0lpFHi52t+83z01o6Sk98AQXA1G7XrK4Z+JF68tNK9erSDlzYkZ8oDSTZLdNPw811mnDWtsNboGtHIeZ1rnqb9a3G5u7/wApxVcWA55HH7Ggod18APWe9JSSXJyluZYPRrsbqcL1pFOlojwYPR9+p8wpiusbAAABQGgHcF2XmTk5Ntm+EdqoIiLk6CIiAIiIAiIgCIiALR7xbtx4ppJ7MtUH1xHc8fWHwW8RSm07RDSfDKJ21urHDIWzYZgPIgUHDvBHELChjZFYijay+JA196vrHYGOZhZI0OaeR5eIPIqCbd3DcLdAc7fsmg4eo8HfktEMy9oolifor/MmZZOJwDmkgggiwfAjiFiujIWlTTKNtB+q8CvQrq5TYAIIyuuuRHFp4WL/ADHP81Jd2N7pcFUbz1uHPADQs78t+ifukkHvCi68Mdh53MaYoZpAHauiifIGkNPEtBA9IaFVziq5Oot3wXFtTpHwUUQeC+R7h2Y2sIdfc4nst9/jqqt3p3sxGOcBKQ2EGxCzVpI4EkjtEado6DuGq1zZ3NaBNHI37WeJzR4aHguHYaJ1EaacAa/I6+aiGKK5R1LJJ8M1w4DTTlYGrvXmBof2F2aOYNniPS1dzccrjQC2TcEwG9a7vD3/AJrl0scduLgKHM60dOHGldVHG4x8PESaDsuU2NXG7uyQRoSNNa4+OmZPimxMolx+y3iSfID3nx8VgSbV+rEywNOFVegptfFZOzdnOc9lZnSl16HMS46AN5e7uHcl/BzXye2zsC+aVuUl730A0CgCTwbevDTWtLviVeu6+w24SARjV51kd3u8PAcB/wArW7lbqDCt6ySjO4a8wwcwDzJ5n+zKwsWbLu4XRpxY65YREVBeEREAREQBERAEREAREQBERAFwQhK8X4gDkgKv6RNkTQ4g4qMgQPsm81NkJFteQdA4gEGuNjmAYq6STWnRvADdQKJBrwIzcbA0vgrvxWKY5rmPYHMcCHNcAQ4HiCDxCge2tzcM+zCTHfFjmNkZ5E09p/EfUteLPGts0Zp4XdxIS7PrbRpp2S0j1gmtP9j3LhkGY1lfdkVTdXAXXpVdajvsLJ2hu7JFZJirjYLxqOdaVYsEfBakylp9Lgb/AG1esam64HwPetCljfTKXGfwb3Z+z8MXuGJndC1osnIXG+6mklprvHI6La/+5OEwUPybAQyS0Sesm+ba5x4uIrO46cMrRpxCibMX2SAXE3Y7bXch3cKr1G+XAeOIwUT9XMy68cpaL9ZH9+5VzxqXTO4Tce0YG8u9uLxp+fmJZdiJmZsY/CPTPibI71ohm4ixz0PPw14qSDZUVAgj15uI816xbOYCNAa1+17+Onh4KFiol5COwwSON24n1k6911+S2GD2Tbu2SOJNA3m8aNA8e+uakMGz8xFAe4NA8uXkFMN39gYUEOmc6Q/YaMjfM+k7ypG4R7YW6XSIvu5uxNOcsTTWmdxJDQa1LnefDU+tW9uxutFhG2O3KRTnkV5NH1R8aWXgsbG1oZGwNaODWgADyCz4pwVmyZnLjpF0MSjy+WeyIiqLQiIgCIiAIiIAiIgCIiAIiIAiIgBC6mMdy7IgPIwN7gvDERMA9EX6lmLydHZtAaWbZkb/AE2gnxA/sLGdu5hjxhb7gpH1SdUurOaI0d1cIeOHZ7gu0W6OEvs4eMeQUj6pc9Ulk0R9+7cI/wAptBcDYEH/AMTfcpGAupjUWxRo2bFhHCJvuXuzZkf2B7lterXPVpYMOGBrfqilmMaOQXIYuQFBJyiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUWGBcYGBgXFRcXGBcdGhYYFxcVFRcYHSggGBolHxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHx4rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAADBAIFAAEGBwj/xAA+EAABAwIDBQYFAgUDAwUAAAABAAIRAyEEEjEFQVFhcQYTIoGRoTKxwdHwB+EUI0JS8WJykoKishUXJDPS/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAECAwUEBv/EACURAAICAQQCAgMBAQAAAAAAAAABAhEDBBIhMRNBUXEUQmEzIv/aAAwDAQACEQMRAD8A5V9R1gtGqW8bqzfhg4TOi13TZ8S5y4UZVcGlaw7HG5TtbKLblrDYkEQBYIsAGJY6RdBLy0wBdWwyOvOirtoYiCICBoewTHObMwUvj6bdCVPCMfE7ih4rD+IRcpAHwjmhsQmHMDmyVT4kvBygJ/D4cluvVAMhjabbZTClgabJO9L46k3ML2TmANMA8EMAlV7Q0wLcVV0MpNzKZxmJGg0W8E6mBpKAHf4hjRokMRjM5gGAhbQxAd4RYKGDoUxclAFthcGwNkuuhY/GaBhlLYjGgNytElIYWnUMmyBj9CpPxNN0/Q7tgnSVXOxTmtvCRxWLL4AMJWBb47aADhlKVB7x2qSpYZ5MyrGhWyi4TtAPYPCuaJN08awGtlRV9rZRZI1dpOcQQUdgW9fENzH8lGwZadVU0AXnxDzVphqWTmnaAuKbmgckpVxQaZF1GsMwG5KjCuNpsob0uyaxyfSLJm0qZG6ym3HMcLqrpYYN5ogpNEkCVB5Ylq08vYSWOdAU6uGGocg02EmwhMfw5J5BJ5yS039EKwd/cpU2k6hO9zfSU0yjCi87JrTIVbEb1ifFJYoeeRL8aBw9LGmSYshtrF53pylhMmpCnma2xFyuyzOFsRRdYk2QapdIa20q0LQ4C/kgYrEtbcDRFgN4XDNygE3S2Pe0Hih4Nj3Av4qdeiIB/qSGFwWLJEG0Jj+KbEi5VHig4kDSVaYegyACb70AL4zFmbC5TVGg8NubHegYuuwczuU6eNdlg70ABxOGzOEG29NnDhg5KppVnuOUTAN01iHOyTKAIMwwLsxNuCbqZWC11X4bDOIzFbxc2AKQyVHDNLiXnVTqloBDRJSTgGmSSiYXFwTDUMCBpuiTYKIxA0zI1RxdIJgFbbhaQaL3SsDdGm0gySl64pt0W8TiNzGodIuNyyyAMp42dCQE93JcPiWFrIALYnklcViA02B8kgJPoFouZRqbKdpEFLsw76ols+atsFs3KPF4jz3JSmkWQxSkSw7COibos4KdNm5NsornlkbO3HhjEi1qNSpTKjkPumGN381XZfwDNEQtGlwThgIZN9CiwIsoiQUXLcqVM7lICEAaZS+6kG6rd1rLZIAjAIusU2NssSA82GJJaSZQqJk53FOuo5Be6XbSmRC07MYjhazqrzlMAJuoyBBukGuFJptcqTXudaUrAPV2lkhjE13rYGb4lTsphpLjchZhKhqVLmEhj2JxW8C4QsKXnxGbo1WmALXlDOMDCGDzSsRqtTl4jzTj3gDwqsxOKI+HfvRKDSRE6o5GMMxTWG2p1W62KAJJ04KsqObSY57zYGBxJ4BVjtrF+gAHupKNibo6OhinvtoESri6TRciVzD6ziJc6BzP0QHV28z+fm9PYFlzX2iwmSJ4bkB+0HxYQOn1KqnYyNAAoMc95hoc4ngPZOkhDzsQdS8D3RGbVI35uoCSds+oCQ+GEag/EOoU24Ng1LnewQ6HTLKltZp1JBvpljS2p4q02fjMxyl2UTqd3DNw+S51rGDSmPO/zRqeX+kQeSrlRNHolLs6HAFzielgmWbEpN/pnrdUfYfbpP8A8eoZIE0yd4GrD01C7J+krjm5J02aGKOOUbSKx2EEQAhvoK1cEuWiVCy6hRlG6NSbx3qbmrM3yTAFvnyRqQ05IbREjlZTpyEmAQuQ3HdvUnFQbeSUCCsbAhGYLSh022CI16AJRyW2glQzSoOqIBDBasQm1BxWJDPOcDii95I0HFFq48OLogEKuZFNhgXKjslg8TnLS/pjEsRScSDqJVgQ0GBrCC8ixmAFXtrF9UXKXYFo2g6fEEuXd2HGBfRFq4zx5ZmyBWpZrzokMyhUcW9dFvC4Mlxk35otENAHFCfVs6Bc8NUWCQapT+FtiZUq+LEkNFxZao4NxAzWO4b/AD4Jp+HazwjXeef58lW5l0cLfZzG08BVrEEWYNJ4nUwqzuhSBEyeP2XYbRqZWGLQD8lwj60+quwycirNGMKGackX3ozKHEny+6JSZ4QVMBNsikZTptGjR53Puuof2Px1J+H72m6kK1RjGPLhDXOIy5spOQ74MGy5lq+hsC8bX2RBP81zMpOmWtTNncpcGu6OVmOKl2RnNx6K3B/pJQLjUxWIq13m7oAptO68Sd3EKy2n+nuz6mGqUqFGm2oAQ2oCXPa8CWhziSY0kHcVR9kOztfaGGbVxmPxJbmezuWPyRkcWFtV2rjb3F11mCobO2VTcxr6dAOOZ2eqS5xAiYcSSY4BdKil0c8pyvlnzbWpFpLXCCCQQdQRYg+agCuh7d43D1sdWq4YzTeQZiJdlGcgG4BdJvzXPkLinGnR1xdqwzaxY5tRhgggzwO4q47Ndr6/e5K787JAdIALQTZwjdxCpGtkcih7POSrmgEFr2OBE6tMe6IwjLiRLfKHMWe0BtlEN1K3QaQxgPxZW5uoAlTGvJZhrirxqhvHBFqGJQm6pgSjN5KThuUWarb3osQN4gcypi9kCo6T0TFI/JIAj3QhtbNyoucttKADkhDdwUM0rBUTBEgsQy48ViKGcAKZkeGyHja2QFoIut1cfZhmWperTFQ2Wh9mMglCMqIWNZcWK1gmPjKGnfqI877k4Nk1HEZiAPfSyg5pE1jk/RUUSe8kibp19VziQxvoFb0tjMGWZJIBE8efv6K4wmBAbEXB+xVcspbHA/ZzFDZb3EF5ge9tVZYbAXIi49VbnDWceAA+U/T0R6FHxTvzO+QIVbm2dEcSQjhsL8R4WHIDX3+ShiMB4ul/OD9PmrzB0QB5unqfwrVKnLvIj0kfQqFllHDbWpWIOkH3C8/q04cR+cl6pt3CzTsCIB9l5ztWjcxuXZppeji1UPYbZT8zC3e35FGhVuza2WoODrHz/dW9ZkFWyVSOeLtEMhiYtpO6eEr0/wDQ/bmSvUwjj4awzs/3sFwOrB/2LkdgbUrlow7KT6zRmhlPNmhxkyyHU3iZPjY7XULscN2KxIy4qlh30KjDmaQWUqgI0Pcuc6m4cRmpdFfjx+0yub4pndbLP8JtOth9KWMH8RS4Cq2G12DmRlf6omI7MbLoPfiK1Oi1z3F5dWcCJJk5WvOUXO4Ly/tvVx2IqUjUqTUpg5KfdHC1WmxcWMe7+aTA8VNztNy4rGvql574vL9/eZi7zzXVk5uJWoN9M9d7a1sPtSmMNs+kK9am5pzsaKdOk24INR+UEHgJ0ncqbZv6Q1S4CvXY02JbTBeQOLnmAOVjPque7B9pa2Be91NgeKwDAwzL3g+DJHAuvuvGsL1ChszbNcfzK9HBsNyKTe9rGdczjYHoUo7Z8sk90ODiP1L7CNwTKdei97qc924OjwTdpblA8Jg6795lcFgsR3VanUgEBwJB0MGV9MbR2EK2CdhKjzUJp5O8dGYuA8NR3+qQCvmfG4VzHPpPEPaS0jg5pgj1CpywS5RZim332extqhzQ9pkOAI6FL1nxbiua7B7VNSgaJu6mbf7Tp6GfULpGsm/AwsicdsqNqEt0UxUn9h9VOmyFsNvHBGLUiQEj5oZdxR3MgIfd2EoAiynaynuRKQieSHUEm3mgRBlyUQMssFuq2NCUxEGNssqtujMatVGoGhfLK2iimtJ2SPIW4ypRmg7K5rXGRAN95DoldrsI06jA5kc4GhjT5+q4J2CqMpNqlvgdcO6nfzTWxtt1KL/CZaT4gd/TgYWrlxb1x2YmHLslz0eiNwcXjU/g+SbqYcBzevyEfX2W8Dim1WNe0yD8+B8005u7f97fVZjtOmakaatCtChYcJEdAZ9ExSbB8/af8pipT+EDQA+0BYaeg9ehMqFkqB1mgUyeTnfMhRNIgk+XmAEWoc0N536fhRXNs3oXepn7pDoxwhpjd/8AlZhRYef1+pKlSuCeF/sFGm6Gjj+X90DoW2lhQafUz9fuvK+0GCyO5H3/ACCvX6g8IHD5gFcJ2pwGakTvaSR7n7q/DKmU5o3E82qNgnldXmFq52A7xr+fmiqsUzf+cwi7KrZXQdDY+eh9f/JaElasy1/y6PeP0J2gw0a9CAKjXipO9zXANvxylv8A3BdF2nx+PqPqYXD4BlSmRBq13junBzQT4LF2sRJ00Xi/YzbxwOMZXgloltRo1LHagTvBDT1avXf/AHF762AwWIxLv7i3u6YP+p1484V2J2irJHkZxfYymMMSynFbu5NIVajqDnhslopuOUtJkAlu/ReUO7RYV7QytgmwyYJq1HPaTAim0FrQwZZLLDhEr2zsxVx7s7sayjTBy92ym4lzdcwebg/03B4rxT9UdiDDY9+UeCt/NaOGYnMP+Qd5EKU5S20GOtxzNbFnve8py0NdNMWlgDpYBukW817D2d23tjaVEPpOw+Hpg5DVLS57iAJLGGRvHALzjY3YbHYmDTw7g0/11P5besuufIFds/BbT2Jg3PZUoVKRcC9pa53dOdDQ5pMSCco9LKvGpR7J5af2d92b7P1MM59SrjK2IfUADu8IDBBJBY3+nU7149+rlOiNoOdRe12djXVA0ghr7tIJG8gNMc1R7Z7V4zEz32Ie4H+kHKz/AINgKklRyZE1QseNp2P7A2h3GJa/+lxyu6H8B8l6tYCBw/CvF8QLSvS+ym0++wzSbuZ4XcTwPp8ln542txp6SfLiy5Ah3uURjfZZkgc9UUNt+eq5DuIFkhCc32T1MCChPaIP5zQIBkWu7WNdJtoFJMAbxvUSNym88FFyYibHWWnn3WU9Ft7eCBdES7msUgAtJjs8HfWdAaXEtGgkwOgV7sWlhTTf3rnNfBLTu0sOZncqzAbO70POdrcgJ8W+OCTZJOXif2C3Dzx2HYjbOWr3ZHhdpG4816MIseMexB+68hw1CthiH3Y4ttpobFeidltrfxFKHfG2ZjhuK49Vi/dHfpMv6M6OmB4eQHv/AIUC6xdx+S2BNuMBaxPs389lnmggdGzSd9vlYI+JFj6e3+UPDN+DmZ9xHyTGIEuHK/2SYwdKwyngSfQfdaFOI6Enkp0hJ9SfUR8lN4k9R7TdAEGMt6k+t1T7Vwwd4TwIPt9SF0FQaAJDEM9oP/E/UhOL5Ivk8V2thclR7CNNPl9FWNsRzt9j8vRd125wHw1Rpeekz9T6Lh6zPz8/LrTwy3RMrPDbIu6NTOwO36HqLFet9kf1OwuGwNKjUpVO8pNywxrcr7nx5iRBO+d86rxnZda8bqgkf7m2d66ptwhNScWQcdyPSds/rBiXyMPSZRH9zv5j+twGj0KH+mO3zW2pnxbu9qVabmMe+CWuBDgGjRsgOFo15lecJjB4l1N7KjDDmODmngWkEH1AUlkdi8arg+kO1G26+HLGYfB1MS+pmgtMMbEfG6DGo4dVzG1ezu1to0yzE1qGHpmCKTGl8kXbncOB4OPRdls/bIrYNuKpsL81POGNjMSAZpif6pBb1VXsDau0a9YOq4NuHw0H43zWJjwkDdzBA11sulco5+j562pgH0Kr6NQQ+m4td1B1HEb5SoXp3637EDK9PFNFqwyP/wB7BY+bbf8AQvMgFyZFTOqDtWYWyI4q6/TzaBbXNI/1eHzBsfp5qoY1D2FUjEhw3VW/+Sqa3RaLYS2yTPbKY84lTFOYn8AWUma8P2/ZGbpPFZrNYiLXSrjNyjVdLnSUk4wZOu4ShAR73SFIv3JduYkHTr9FuoNykIKx8rRCykFKobpgZT0RXlDbopEykBHIVpSE8ViBHhDdPzqo0qpa4PGoMg8FjP8APmrLamApsEsqZjaRbeJkRuW+efIYjH1cQ4SS92gH0A8032d2i+hXBg2MOGltDP5uSexdpvw78zIkiLibTNuF1PG4zM9zzdzjJI0SatU+hp07R7Xh3gtDgZEAg+SE05tdJ9d/2XM9iNr97R7px8TPdu70XUNfL8vKfksbLBwk0zaxTU4qSGMKyYPIn89VqoLz1A9kRhAgcj9ETKPQfhVRaDoU8voB6KVIandAHz+6nNhxduUYsGoAykZJO7QfnX5Jeu2CBxJ9Yv8ARNm192n7oGWSD1A5SCfoEhHP9odnCpSjeG2/PULyTFUC0uYdWmPTT5L3TEU5vui3lF/Nea9sdk5KveDRxv6wfnK69Pkp0cuox2rOOw85XR8TYqN8rOHy9FdkhzQ4aEf5CrMLDKoLtDIPmN/5uKb2f4Huou6sO4zuHX5grrnycMeOCaxMVMOQVAUSq7JUekfpf27o4Si/D4pzgzNnpuDS6J+JkNuLiR1Ks9t/rCLtwtCf9dYx5im0383BeShomJk8Bc+gTzNnVMuYtbTZ/fWcGD01Kt8rSor8SbsZ7QdocVjnA4ioXBs5WgBrWzrDR8zJVSWtGpE8NT6BHdUoiYNSvH9kUqI61HXKBUxjhYFtIf20RBP+6s+XH/plQacmTVRRrE94Gw2m4SNXCD1DTcqfYjBGpXYIMNdnceMf4QKQJkNETqSSXHq43jpA5L0fsjsttCkCR436nhwbyEKGV+OH2WYY+Sf0dRSHsPqUUet/olaDpGup+XFN0RPQac1ms1CJZfjbySdan/lWLzYn0VfWM8vmUkNC0XtuAUasAc0y4RNkJzDvAU0DFgSttBJ6IzaX3UXOTEY0rG1JUSsDYQMOKixDWJC4PCQbKWeyiXa/nJdBtCphf4SmGA99v+sr0B5454lXO1aNAik2j8WXxmTqeM71W4fCufORjnECTAJjmVGi+EDOh7J1X0a4LLzYt5EST5L1fA0Ig6uIJPnC8Twe1H0qgqMMGI6zu9l6v2R2wK1AOJlzRDvp7Li1mPqSO7R5O4lwyc5tuA9ymmt1H5ohYQWJOpv06o1Jt+qzWaFmNaTfhb7qbGfnCUWPaVmSBfU6/slQWCfTm3+Ao0jJnh9tfdFPDQfllphvbSD7f5SGL4pgJ6XPqIHVUHaPZffUiD8W7r+0gK9qHWDJnjqeHlr5LMYyABrGv55hOLoTXo8M2lgyHOBEEH97e/qkMTgy1uZviaSNN2p0816/t7swKwJmKgiCALg8bfkLzbbfZ+tROhDTfl+aLSw5VJUzNz4WuUH2Dtei9mTEvLMoEO7o1JEgeItcCCBN98BdGcBgWM7wmrXOuRoFMX0u95m34VwWGdVYZE3tMGT1cLlPgVX6z57vN11Y8Sb4KVkdclzX28QIoU6eHb/pAqVP+ZOUFU1atndmdL3f3POc+Waw6QUdmC3uMn19ymGUwNApxxpCcmxMUXuuffd0m48kelg2jW6MXhQNVWURLDZlDNUYwCZMmOAuV3Yqab9wA0/LXK5zshs+WPrHf4W9NXH5D1XQtfllx10A4dFm6qW6dfBpaWO2F/I7Qfe+/d9FaCpxPkufovOpPi9U2zEFu4krkcTqssarra+v2SdR2W8+qicQTqQORN/RK13g6mY9EKIWTOJduIK1353j0KEKwRQPwp0DZgqg7j5greZazrRdzCdBZMFZnlCc87jKjnRQrCmosQg4cVtFBZ4k2m65AJDdTGnXgsuE7g9oup0302xFSxkLexcC2tWbTc4NG8kxpuW8YA5sfb78PTexjW+P+o6jcqmjQNR4Y27jp+5Te2cKynWdTpuljdN+7j1SLC5pDhYg2KKAcfs9wcWuiW8Cu7/TYHNUFsoA9d3VcKMeTJN3E3Omusp3YW1zSrNfJAkTB1UckN8GizFPbNM9u3QD1+6xj4NtLAJUVBAyiZi/+VukyTvndGk/VYbRtIs3ncPzqhl3Pz4KDZ36cvqpZI4AdVEATnbrn2+agJN/Ia/mqnUcNJHyAWnExYQ0eX+EDINYQRp+cAiNgyTGoj7+s+iWLyTlDRc2voNZW21CJDgBBFgZ9yigDVKgnKCZIA0mASd3GxSuPwragc0t1EEn6eqma++44RH1+fNQgtBJ+I6mSecBSXAmeTbZofw+ILBOQmLrecI/b6u01mtbqAJ467+arGOstfA24KzJzJKbSGHVENz1GEbD4V7zlY0uJ3ASrbKgJKc2bs91V0DQangPunW9nqwMObHE6gdYW/4uJa0Rl/tBg81XLJ8Eox55LWn2gFNvdU6TsrRAPHios27mI/lOB46/4VfT2gA0DLJcY0Oa/BMPwOIAHdtdYz8PzlcniidXnki6GMixlpPBQdtSN89be6qMZhsUT3xY6BY2geiQqYavUIb4W7ySfYo8CH+RI6N20yeXUyonGcQPIqq2bgmBzu9dmeNACmRj8Plj4SDBlR8BL8j5LKhiRNvomxVJ091xztqE1gykMzSR4twXRGqWHK9wlQlhaLI6iLLJj3b4Uw8lVbto0xq4DzU6dcHQjyKr2MtWRMfPRTYkWYgG31RhU5pUPcOArSC16xKh2eNtwz8ubK7L/dFvVTwtF1R7WNEuNgI1Rf8A1Op3Qog+AGYQ8Fi30qgqMdDm6SJW6YRLaGCfReadQQ4bvkmsNsovw9SvmADCBl3k2+6Dia1TEVS4+J7uAk2G4Jd+YAtuL3H7IAFTbcTpvjhv81c7TxLKjqfd0+7YwQP7jzMb5SbNn1QzvspySG5ufBMw2De/RNID1rYLhUoUn5pBaOptcH7K3pvjS3Vcd2BxQOHcJJLXmL6ggQusY07xE8/ksXNDbNo2cMt0Ew+YxO7rzQXmRZs9fuVI0yNDA8z9FvNAuD119FTRbYKgywkfQD7qVRwIsJvu1N/YKDqoubnrp5pbEYku0+G1wDfkJiyKCximYklxk20PCYEJZ79wuXcOE9LWlBrYg6RG+7bDdEN1KTq4xrR4jHUQ53/TBI/NFJRsi5JFg10Ok2tbym43Kq29t0UmFxILo8IkXPG1kjjNsAh3dkg8724AHRc+/Z+d0uObMZuZM81fDDfLOfJqElwc+/PWqmo7U8Pzmn6VDxBhsTuKboVe4cbAOGki0g7lf4KpTxVanUrNBLbECw5GQu5PaqRwPnk3s3sxTflmqM03aR8uCNhtj1sFiHua4FpGkz0hNYPYbqVWrVa+JHgaDmnkZ0S20nvlpdmAm5II9VC7HQLGbdeQbESYMNNuMobMcxjcjAMzwbkW8lKoYeWUjJIzdeIC1gi+lWY2pSkEzGpHRLgkjMNi3UXUiaQJBl28+Su8R2wmuP5cUgOl+asML2kourlppxlESW69UHaO0aOQtc1sPda2qj9odlPtbtYDTMGZd8ICR72piSxtCjLR8ZcIT+2qdPMynTDA6AYMXA3KNHbdSlVhuUAiMqf0II3sdUJDi8NG8N3cpVdiuyrDVytMjn7lNYLaWLLXhoc4EzcW6A8FHa+GxjqlNzYYS2CAfmnyAlUwNKnTqZHs8JiAboWG2fXxWUAFrR/Ud60zYHdOdmBe83J3eauKu3j3ApxDgdW6wE+fQUDd2XpsaS/xFtyUPHYqlTLBhQKheIcJ+HmqvFbSxNXM1khhs4kJzs13eGJDgLjUpUCLHBdnnhpm7nX19lXdotqtaxrKAPfNOV1ijsx9WtIolwgnxbgrnA7BDGFziHO+Mk70ml7BNro5KhiMYWiZ9Fi6N/a6jP8A9LuFhwssS2r4Jb38nk2GDS9od8MiTyVv2jp0GPaKMiG3tqdxWLF30cvoR2XtF9B/eMjMOIkXUcViy97qjoJcZNo9lixAjdXaNQ0xTLpYCSBGhKssRttjsMyg2kGx8TtS4jfcWWLEvY0dJ+mmIP8ANG7wn5ruf4uNDfmFixZer/0ZqaX/ADRo4p53ieGv2Qw55JGYCOVz81ixc50GOpgC+Z3GTqem9I43arWtJgj9xyWLFKKsjJ0jnMd2hefgkZpMuIvutGn7rQpPqgCRmHHfyWLF1xil0cE5t9kf/SDmLS65EjrCpqtU0yBoRB4haWK6JU2dZ2Xc2q4mo1rhDgJEwTqUansFtOnXyOIqXLMugGsXWlihJ0wTN7HZVpUgakEuJgzJ80SvjKlR7qUyCATPNYsUb9h7KLHFrDAbdpyzvB4hX3ZZ1CtU8ebvGgmZMHktLFN9DXZcYXC4Z9R4yQ4CHEE+RSu1OzuGNGBmkkwZNvVbWKA/ZzlTYVMFrnvdIid5hW2zMVhmV8gb4Yu6JJ3rSxS7GM0+19Nves7uBJykfUKl2n2iOdhpDOY8U2t5rFiaiiNh9mYTE1w6v3oaHmCyJsPqruj2dpUy1zbucNSsWKDY6KjGY1lFlWmb1G7ot6qkq97igzO1rWgXym5WLFJAXOzMuHa+mLCJlV2zMa/FVTTzFrANx15LFiAZ1dKlQYA3ILW0WlixKgP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSEhMVFhUVFRUXFRUVFRYVFRUXFxcXFhUWFxUYHSggGBomHRUVITEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0NFQ8NDzcZFRkrKystKy0rLS0rLSsrNzM3Ky0tKy0rKysrKy0rNysrKysrKysrKysrKysrKysrKysrK//AABEIAPsAyQMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAwQFBwIGCAH/xABREAACAQMABAoFBgkICQUAAAABAgMABBEFEiExBgcTIkFRYXGBkTJSkqGxFCNCcsHRU2JjgpOissLwCBUkM0Rzs9IWNENUdIOEo+FklMPT8f/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABYRAQEBAAAAAAAAAAAAAAAAAAABEf/aAAwDAQACEQMRAD8AvGiiigKKKTuJ1jVndgqqCzMTgADaSTQZswAJJwBtJO4Cq84Vca1vbkpb4mf1ySIh2jGWk8MA+tVecY/GXJeO0FsxS3BxncZfxm7OoeO/dXyAk5PmaDetKcZV7OTmeVFP0YQsAHcwy/m1RP8ApBM3pT3XeZ3Y+81DRJTlEoJMaSnPo3c/cZpVP7WPfSMukLwf2q6H/UTf5qbBaWikI2bx1H+NlAmeEF6uz5Zdj/qZh+9Xv+k17/v15/7qf/PThoFYbPEHeKjLvRxXau0e8UEhHwvvx/bbrxnlPxJp4nDzSQ3XsviVPxFasCa91uyg2scYukx/bJPYiPxSntpxpaTXfciTseGH9xVPvrSQe8Vl5UFo6P46rldk9vDJ2xl4Tjx5QE+VbjoPjZsZyFflIG65FDJ7SE4HawFc/qvYfCssfxuoOt7a5SRQ8bq6ncyMGU9xGw0rXLfB/hBPZvrRSuh6cc5T2Mp2MO8Vc/A/jKhucR3OrDKcANn5lz2E+gexuzBJ2UG+0UUUBRRRQFFFFAUUVF8JtPRWNtJcznmINgHpOx2Kig72J2e/cKCUqheOfh0Z5DYW7fMxn55lP9ZIPoZ9VT5nuFaxwh4w73SDs7yGKBfRgiYqhJ9EORgybiTnZs3DNamdpoPVFOoVpui08iWgcRrS6rScYpYUBigCsxQFoFIakRbNqa5U6udXWwdXWIJC53ZwCcdlGgdFvczJDGMs5x2DpJPYBknuq+4+DEAs/kRXMZXBOzWLb+U+tkAjqwOqg5xvtFhtq7D7jUJJCVODkGt50nYPbyyQSenGxUnoI3qw7CpBHfUDpUa+VQAlBzmIzg4yEHbu7h30EHk17r9YqPkvcEjJ2di1h8uPb+r91BKLJ1HFKBz31DfLj2+Y+6vVvj2+1/4oJoSjtHwpxb3BHRkdlQ0UpPSfMfdT+3t3O58eX+WgsngdxgzWmrG5MsHqMfnIx+TY9H4p2dWrVzaG0xDdRiWBwy9I3Mp9VlO1T31zHb2M3rqfL7hUzoSa9tZBLAwUjqAww6mXX5w7MUHSVFMNA6Q+UW0M+zMkasQM4DY5wwdowcjb1U/oCiiigK5+/lD6eL3UVmp5kKB3HXJJuz3IBj+8NdA1yTw1vRdaVuZDtUzyeKRcweaxjzoIgrqqqdXOb6zYPuGqPA16grFmJJJ3k5PjWaCgcQrTyNaQhFPIxQZKKyxWQFe4oBTSqik1FbBwO0Kbu6ji+iTlz1Iu1tvRsGO8igs/ir4OCCD5S4+cmHNz9GPePa2Hu1e2t7rxFAAAGABgAbgBuFe0FWcc+imHJXUewt8zIere6PjpOBIPZqtI4go1Ru29u/eSeknfntroPhpo75RZTx4yQhdevWj56jxK48a5+NBoekotWRh27O6mtTPCiHEuesVDVqIK9FeVafAHizjuLUz3bMr3CP8AI4w2qx1VLcqR0jdgdW36QqUV3bGpyxatetn2VbEeiNG6PhgW/See6niWZkifUWFX9EbHXO4jaTkqdwxUVD2bVM25rPSmh4ViS7s3Z7d21GV/6yGTfqPjoxuPdtOQShbGgtHiwus28kX4KZsfVlAlz7TyDwrcqrLi1utW7eP8LDnszC+wd5EzezVm0BRRRQafw44wLbRx5KTXaZoyyqighc5VC5JAALA9Z5p2Vy7ZnY7E7cBfFjknyRvOrb41kE1/OrfREag/8tW+LGqnmgKZVTs1s+7A+3zoPFpaKmw1h0UokuOg+RoJKKncZqKjvAKcJfr10EotZio5dIJ10oukk66B+q1b3E5orVjluCNrERr3DDP4ElfZqlBpDPoqx8DV98VWmUktVt9UpJEpZgfpBmJ1ge84x3UG8UUUUHhGdhrmzSNryUskX4OR09hiv2V0pVFcY9pyekJup9Vx+cgyfaDUFdcKosordRrV63fTUOtEwrSKsBW8cA+E8p0no7lXJSErbRruCrIGj3deXGT2DqFaPStpcNG6SJsZGVlPapBHvFWom+FlhyF/dQ4wFnlCj8QsSn6pFSWktPS3kiyz6mskSRDUUqCqFipIJOW5x291P+OSBRpMzL6NzBBMO4ryez9HnxrWbHJIABJJAAG0knYAB0kmsqtHggp/mzSDP/V5gCZ/Chs7O3nReYqOtWqV4WkWlva6MU85FE1yR0yvnA7hlzjq1KhbRqDZODt1yV1bSdAmVT3Sgw7ezMinwq6KoN8lG1djYJU9TDap88VemjrsTRRyr6MiI47mUMPjQOKKKKDn3hrPrXt03VK6+xzP3ariU5Y99bxwjfM1wx3mWYnvLsTWjHfQKR05jWm8dOY6BdIx1UssK9VJx04Sg9W3X1R5UukK9Q8qxWlVoFUHVVo8TlvsuJD+TQfrFv3aq9aubint9WyLevKx8AFX4qaDdKKKKAqqOOO0xPBL68bIf+W2sP8AFPlVr1XXHlZs9gkikgxTqSR1Mjpj2inlQVLcplWHWDWgXC4Yjt//ACrAgkDqrdDKD5jP21pOmYtWVu3b/HuqwMaKKXsY1aRFkbURnUO+/VUkBmx2DJqo33h189ovRF0BuhktnPSDCQqD9SQ0vxM6GFxfCVhrJapy2rsyz5xEAD1Nls9aDrqQl4s5HxbR3sjxRyyhoWZTyB5JzExjVygZpQUONuJUO8kDU+Ddo/JpLFcSxM78k/JuyHJ1sAlSCRrGDYfXPZWVbrecFdK3E8txJaMGlcsRysGwblXPKbgoVe4Cm01jJBIYpkKOuMqSpxkAjapIOwjppjY3Mxllia8uMoTqEyyEMobazEvs5nOx09mNry6BD5LO2Qdsh1nGqzIQT04KH3UD+3NWtxeXGvYxL0xGSLHUEdgn6mp51U1uasHituf9Zh6mjl9teTOP0HvoN8ooooKl48dGQwxJdAFZJZRE+r6LZR3DkesOTxkb89lUf5bcHf0EZHxq8/5RLf0K3H/qc+UMv31RDjd9SP8AYWgdR05jplCtP4VoF0pdKwRaXRaDJaWWsVFLJQKQRMxAUEk7gAST4Cr74EWbQ2MCOpVtUswIwQWYtgjoO2q34q/9eH93J9lXJQFFFFAVrnGLZ8ro26XGdWIyDviIlH7FbHSdzCHRkbcylT3EYPxoOXtFt80B6pZfAMce7Fa9wpiw4PX9u74Gp7RkZRpYm9JGGsO3Go3vjNR3CuLmhur45x9poNWpW0i13RCcBmVc78ZIGceNJUVpFhyWskUshbSqRytMk8nNVWMqaxR2GsNvPY43HO3Oyoe+na2MYhvVlAD/ANWqqI8srHIBOckKQTu1BjdWfCfRctzcJLBGz8rBFISNwJGrtJ2A80bKgrrR8sJ1JUZCQcaw2HuO4+FRVg2NiyLG9zeclI0eETV1mCHoYg9g++lr63lRl5R+UBX5uQHWVl37D47e/pzmovhS2vLHOu2OaJCh6Nmcr3jIOO2pfRh1rB9bdHKpTs1sBgPaJ8agWtjW28X1zqXyrnZLDIneylZF/VWXzrTrVqmtC3HJ3NtJ6s8Y8JDyLH2ZCaC66KKKCpP5Rh/olt/xDf4T1RrfR+on7I+6ry/lGf6pbf8AEN/hPVHNuT6g9xI+yiF4BT6KmUFPoqKcpS60glLrQKrSqGkVpVKDd+Ks/wBOXtjk+ANXNVJcWT40hEOsSD/tsfsq7aAooooCiiig5t4VWvIaWu4+hndvbKzAeUxqF0/HrRHx8yNlbtxyWvJ6UikG6WNCT1n5yIjyEdanfrzD2bfKgr+ispE1SR1EjyrGtInpeFMxtordCY+TyGdWIZxnmjZtUAdu2pPQN297BNazMXdEMsDttYMm9dY7SDkDuJ7MRGjNDCe2leMsZ4mBMYwQ0Z6VGMk5z09HaKf8XUL/AC1WAOqqvyh6ACpAB7dbHlUVP8G7tYLDlJhyqSyERQsAUBXOs2SDjaG8h0k1N2l6l5FyEa8i6ZdI1xycmN43DDb/ADzt6NY0SoubM28W2S3laSNOmSJic6vaCx93XUjwPtZDcx4VhqNliVI1QAcg53E7sdtQPLU09lzqNq+lqkqepgMqfPFNJJAZZCvol3I7ixxT6A0F52dwJI0kXc6Kw7mAI+NLVr3ACfX0fB+TUxfoWaIe5BWw0FT/AMotP6FbnqucecMv3VRI9FPqn9t6v7+ULHnR0R9W6T3xTD7RVBJ6CfnD3g/vUDmCn0VMIDT6KgdJS60glLLQKrSqUkKUU0Gz8AJNW/tz+OR7SMv21e9c88GZtS6t26pos92uufdXQ1AUUUUBRRRQVbx3aM1/kc2cBHkVu3IV0HnGffVaSjII7Ku3jVtdewZvwUkbjxPJn3SGqUNBoGkFxI3fnzGT8ab1I6djxKe77T9mKjq1ESPB/lzcxJbNqyyOkaHOAWdgoBzsxkjfW8cJLPSyyx2WtDKbjXEb2zLqSmMssyco2rqlSrBgcYxVd21w0brIjFXRlZWG9WU5UjtBArcOF/D1r+WykaLk/kwDOsZCa8zSa8zo2Dq62qh2g4Oc61SqjtEaPnC/KEKxhJRFrvNHCwkJUEAOwJA111iNgDbdma2260jfqXt5mOU5smoEI9HXIMkYx6JycHrzuNRcfDRNW5SO2YR3LyyNG1yWTlJVlQ6yrEuugEikLkENDGQwwcz1rxgPs1YmAypYNcO7SYaFiZXKgyEiBEyRnVyNuSTA1hQqxRt6kqcEEZU4OCCQdo3jZUrbmouS9M0jSEYLYJGc7cAMc9pBPjUhbmgsziuuMwzxn6E5I+q8aN+1ylbpVb8WM2LmdM+nDEwH927hj/3U91WRQV9x6w62iXPqSwt5uE/frnGD+rH12/ZT7q6h42bblNEXY9WMP+jdZP3a5iiT5rPVIf2R91A4gFPohTO33U+ioF0pVaTFKLQKKaUFJisxQOraQqQRvBBHeNorpOKQMoYbiAR3EZrmeI7a6D4IXXK2Vu/5NVPenMPvU0ExRRRQFFFFBE8LLblLK4TGSYZCB2hSy+8CuejXTTqCCDuIwa5quoDG7RnejMp71JU/Cg07hQmHB6yfeBj4GoStl4VpsB7vIZH21rVWApSOEkZHWBvA2noFJ05trjVUjP0kbHXg7fs8qtQpboQMnsPgd3wqZsv4/jwqNhuhsAdhhSo2bhraykeGBUlb3AOwZ+Gduc48/OsqnrJqm7Y1r9k1TdqaDbuAswS/h/KJNEPFRL/8FW1VJaFuOTubaT1biIfpG5EnylNXbQRfCiz5azuYfwlvMg72RgPjXLsWh2+RLMzFOUlGqpG9cY1sdp9wHXXUfCLSQt4Gf6R5qD8Yj4DafCua+E+kzPIIkGI4tmBu2UBZ8EpXUFZk29an76jrUkZV9jKxVh1MpII8xWMenXj5qMdnVuphJcuzO/S7s572JY/GgnFalVNQejmeWZIdYKXOATu3Ejd3Y8a2xOCcnTN5KfuoGamlAaj9K2ctvKY9fWGAQSMZz/B8qbNcygdFBu+htDQSIJH1yxJyNdguw4GFB7qt3gNdDkeRGwR+iPxT0eB+Nc46M4YywcxkVlz3Hzq0eBXCZXZZYydh5w6cdINBcVFeA17QFFFFAVz/AMNoNS/uV/Ks3tgSfvV0BVFcZa50jPt1ccmNmNvzSHJyN+33UFf8JkzHn+N4J+FalW56UbcCc9O4d23rFRy2q+qvsig12itk+Tp6ieyK9WFPUT2F+6ro16E7alrNqkRCOoDuSP8Ay1mFx0n2Y/8AJUDqykHXU3bTqN7DzFQMa/xhfsFKa2Ok+f3UGzS3yqhZWUsvOUBgSWU6ygDryBV7/wA5xetXOOh4mmljjUnLuqDJJGWYAbDsO+uiv5ni9Ueyn3UGl8amkdRdX1IyfFv/AAB51z5eykLjO1yS3XjO6rs44VOsw60Qju2j4g1R9/6Y+qPtoEoUqSgiFMIakrc0GV1YtDyF2cBDNqptGWMeqz7M5AAZduPpVtg4ZQ+tWs3MHKoIySAG1hjrxjp7PspK10SiHWyT34x3UEjprTSTzIVGwpq5/GDNs99YclS+k5OXlEzKikKiqsahEVUUIoCjqVQPChRQQulNHZGQNtSvFrKwmK9GN3dTlUzW28VvBkPctJ9EEE9g3keOwUF22oIRQd4Vc+VK0UUBRRRQFUNxjy50jcfWQeUUY+yr5rmzhffcpdXMnQZpcfVDEL7gKDW7x9Zz2bPvrBG6KTzXqjNBmdtZKmNtZJurxjQK61erHnad1YxjG+lmag9RuislTPdSar004U7KDdOKXRvK3wfHNgRnPVrHmIPex/Nq8q0Tif0TyVmZmHOuH1u3UTKoPPXb8+t7oNT4w+DpuoNaMZkjB5o3up3qO3YCPEdNc26RsCjsCDkA48Dkg++uvq1zhFwIs7wl5I9WQ/7SM6rHvG5vEGg5VjqQtzTfSFm0EskL+nE7o31kYqfDZWds1BKRVm0wBxtz3E/ZSMLVvWiLrQnJq1xaXHLAc7UmlKMellxKowd+CNmenfQaTLdqgyQ2O40ta3CuMqfvrddKaT0JLE0a6PmUkc19ZVdD0MG5RvI5B6a0e0tdUk53gDA3AD476B9HVhcU2ktS4eEnZMmz66ZIHsl/IVXyCpHRV40MqSp6SMrDwOcHsO7xoOiqKRsrpZY0kQ5V1DL3EZFLUBRRRQMtNXvIW8034ON38VUkDzxXLWkJdmOur544tJclo8oDtmkRPAHlG8OZj86ufHbLE9VBii530saSzSirmg8U0ugArA7KEPRQZM1LRDrrFUA768ztoFWanuirFppY4V9KV1QdhYgZPdnPhTWJRvqweJ3RXK3b3DDmwJzf7yTKjyUP5iguKytlijSJBhUVUUdQUAD3ClqKKAooooOduPHQvIaQ5ZRzLlA/ZyiYSQeQQ/nVoMJrpHjd4O/LNHuUGZbf56PG86oPKIOvKa2B1ha5rjNBKQNT6KoqB6fxPsxnGQRnqzQKm7jH018xWP8AOcQ+kPfSUGgodUF7mQN0qlsr4/Oadc0pc6Et8DknlJzzuURFBHYFZiOjpNA/t5AwBU5Bp1HTCwtuTGM5yc1IJQWzxWaW14Wt2POiOsnajHb5Nn2hW81RPBnSptbhJhuBw4HSh2MPtHaBV5xSBlDKQVYAgjcQRkEUGdFFI3t0sUbyucJGrOx6lUZPwoKS49dL691Hbg7II8t9eXBI9lU9qqzX30807pJrq5lnffK7OR1A+ivgMDwpruoM1Trr0NRnNZCProPVTPdWZ2bqxVqzWPO00Hq7aUAA3VgWxWcced+6gyi91dA8Weh/k1jHkYeX51+vngag9gL45qnuB2hvld3FBjmZ1pOyNdreexe9hXRQGNgoPaKKKAooooCuXOMjg38gv5I1GInPKw9Wo5PMH1WDLjqA666jrRON/gqb2z5SNcz2+XTG9k/2sY7wAwHSUA6aDnWJqfwvUYhpzE9BLLKApYnAAyf48abHTkY3Bj5D7a8jcHYdoO8GvVsIgNYqAM7yTj3mgx/0hHQh8TU9YXIkUMPLqNRMT2y/g/IGn0GloBhQ47MA4+FBMRVZ3FvpzWT5K55y5MWeld5XvG8dh7KrOHaMjaD0ipCylaNldDhlIKkdBFBetVjx4cIuSt1s0PPn50mN4iU7B+cw8latx0VwmiktmnkYJySkzD1cDOR1g42eW+uceFmnGvrqS4bZrtzV9VBsRfIDPbmgiouulAuaSDYpbWoMkbFZ7TSNLRSUGYUDvrMMTurELnfSq7N1B6sON+00rEKySLO+ts4AcGfltwNYfMRENKehvVjz1np7M9YoN+4p+D3ye3Nw4+cuMEZ3rEPQH52S3cV6q3uvAMbBXtAUUUUBRRRQFFFFBz5xt8CDaTG5hX+jzMSQN0Uh2svYp2keI6BVeKa6+v7KOeNopVDo4wyncR9h7eiueOMDgBLYSF4wXt2PMfG0fiNjc3x6OkANQjenDBXGqwyPh5UxWl42oHUOjIT9E+0331LWeiIPwY8cn4mouCSpa0noJ63hAAA2AbgN1OkSmVpOKjtO6eCgxxHb0t1dg7aBtwo0xnMMZ5v0yD6WCCF7RkA94FarrV7M+aTFB6WrKOSkyK9waBYvQstJUbaB+suacQyVFoa2fgdwPutIv80upEDh53B5Ncbwv4RvxR4kUD7g1oOW8lEMQ2nazdCL0sx6uzpOyr90DoeO0hWCIc1d5PpOx9Jm7T9w3CkeDHB2GwhEMIPW7tgvI3rMfsGwdFS9AUUUUBRRRQFFFFAUUUUBSVzbpIpSRQysMMrAEEdRBpWigqThhxS5Jls9vTyLHDD6jnY3c2D+Maq7SGg5YXKSKUYfRkUo3kd47RXVlIXdnHKupLGkinerqGXyIxQcppat/BH305j5u8jw21f1/wAX2jX5xtgD+JJLGPZRwKZLxc6N/wB3P6e4/wDsoKNnvmxgbB76jZMmukouLnRi7rYeMsze4vTheAmjh/Y4vEE/E0HMJirwx9fvOK6ttuDVnH6FpbqesQpnzxmnyWcY3RoO5QPsoOSoLRnOEUsepQW+FPo+C943o2ly3dBKR5ha6tAr2g5mteLvScmNWzkHaxjjx367A+6p6w4mb5z87JBEPrNIw/NVQD7VX3RQV3wf4obKAhpy1yw6HwkOf7pd/czMKsGGJUUKqhVUYCqAAANwAG4VnRQFFFFAUUUUBRRRQf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMWFRUXGBgYFxgXFxoVHhsdHRgZGRgbFyAYHSggHhomHxgaITEiJSkrLi8uGR8zODMtNygtLi0BCgoKDg0OGhAQGy0lHyUtLS0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIASwAqAMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAABQMEBgcCAQj/xABIEAACAQIDBQQFCQYDCAIDAAABAgMAEQQSIQUxQVFhBhMicRQygZGhByNCUmJyscHwJDNTgpLRQ6LSFWODk6OywuFzsxY0dP/EABgBAQADAQAAAAAAAAAAAAAAAAABAgME/8QAJBEAAgICAwACAgMBAAAAAAAAAAECEQMxEiFBE1EiMkJhgQT/2gAMAwEAAhEDEQA/AO40UUUAUUUUAVW2jiO7ieTfkRmt5AmrNKe1TWwk3VCvv0/OhKVujJYH5QZbhJYEJ0uysUAvpuIY9d9Q7W7QYiW9nMScFQ297bz7LCkeAhJlOUhTfeQCPCha2vO1r8CaZyR6VjyZ2LHFPQseeX+LJ/zG/vUZnl/iy/8AMb+9W2jqIx1Wy9IrmeX+LJ/W3968tiJf4sn9bf3qyY6jkSlikSbP7Y4vDMLyGVOKSHNp9lvWB946VosX8oEvqph0VsoYFnLjXottdedYPHLV8xnNGSoXNGCAt7WKgg68efW9W5Mo8cW9HYdh47v8PFNYAuisQNwNtQOl71erNfJ3JfAxg71aVfdK9vgRWlrVaOOSp0FFFFSQFFFFAFFFFAFFFFAFFFFAFI+2TfszD6zKPjf8qeVnO27fMov27+5T/eolovj/AGRgtnIhcZxe7Nk6MALE8uNOJxVHYUltLE94puRuXxhhm5XyECmmKFYHahVIteCtWJEqPLwoSQFajkWrRAqF1oBHj1sas4bLljK629fUmzG9xr0sa8bRWvuDlvGgy2yNbN9e7E39l7eyhDOh/JrJ8xMv1J2HvRG/OtfWJ+Tl7Nik+1G3vTL/AOIrbVvHRxZP2YUUUVJQKKKKAKKKKAKKKKAKKKKAKyvbiSwQcg5PwrVVje3La+Uf4k1WWjTD+6EmwAwULl8BRbsTubxEKB1BJ9lX8VXjZ2YDLYd2bZTxzBAGBHLKQfaa94g3rE7EL3Woyv68qneomFCSJxULCpmqFzQCraAqPCSN3IBByozZTfQklSw9mnvqfHjSq+DZjG628CkkH7TAaH2ILe3lQhm2+T97YqdfrRRsPYzA/wDcPfW/rmnYaX9tX7WHce5oz+Rrpdaw0cmZVIKKKKuZBRRRQBRRRQBRRRQBRRQaAKxXaqQGcqdfCv51W7QdqJ5cQ2FwTKiIcss9g5zfSWMHwjLuLENrcW0NINlbQBMyvI7lJXXNK2drA8Setzbhew3VnN+HRhg07Y7hkPE+HUgW3EgAn4D3mvMja1BHj0r0+NXnWZ0nk1GRXv0tNNev9q8nFJzoCFxULL+v11qw+ITnUT4hNdaAo4qImqUaut00yMwZhbW4BAt01px6Qlt9RNOnMUBc7Fyft0ItbwyAf03/ACrqYrhfaTHmKIPDIY3zKodTlIDHK1mGqmxIuNRe9aLsj25xCYhcNjXDo5ypKyhGVj6oktZSGuADYWJG++mkX0c2XG27R1Kivgr7WhzhRRRQBRRRQBRRRQBWe7abYaCEJEfnpjkj+z9dz90bvtFRxrQM1t9c9wshxmKbE/Q9WL/4wdD5sbt7hwqsnSNMcOTFWOZMBhAToz+EXOthrIxJ6aE82qbCfJtLIon9KMTzXklQx57MxLADxC1lKgjXUE8aV4pBj9rrmIGEwbZSxNlLIc7i/wBp1C8rRmtLt35UoEYxYONsZKN+TwRL96RtPaLjrVIpems5StKJzaPvtCJBqbeqdPFa/wCdeJsZIrMokDFWZdF5Ei+/pV7Z/ZTFSred8qneq+BLXv8ASBZhrwBp1B2bw6AA+K31VA9xkzH2gCskn6b2ZePETsQudQeA3n3DWpG7/jMg/lb8hWrbDwgZe6Urycs/vBOX4VA3djQRQj/hJ/pqwMs5m/jx+5h+IqtLLMpsZFPTT+9amZYzvihP/CT8hVKbBwkW7oKPsFk/A2+FRRIlw0zs6J3oUsyrqLWubc9d9T4VJXdU7y13VL2v6zhb79a+YnYiEEK+/hIoYHzKZT8DS0RYjDMHS+VWVgD87HoQRe1nUacvbSmDp2P+SVpY3R8Xn8D5B3eQZ8vgJOYnKGsSONqyjr6Tho52UhypSYWsRIhKuCOBzXP8y1uezvyr4eQKuLX0ZjukB7yFj0car/MABzqrtDZojxeIK2bDYkLiVdSGXPbLOLj7KrL1K1q0q6OWEpcuzQfJv2hOJw/dSNeeCyuTvZTfI56kAg9VatfXGoWfZ+LTEC+UHLKB9KMkZt28iwYdVtxrsUUgZQwNwQCCOIOoIq0XaKZI8We6KKKsZhRRRQBRRXw0Bme3e0MsS4dT457qbaWjH7w+24X+a/Clc8nouEZ19ewRPvuQinyBbMegNVYZvS8XJPvS+SP7imwI6Mbv5MKdYllIFx4Bu5sRxB4KPrDXlWMnbOvHHjEyUXZ8vAMOpMcC27xzo0rbyzcr8BqdeFX8HgIMMuWGNRb6RAuTztwPvPWreKxXDgNwGgA6VltsdoljGhBucoJBILfVQDV26CoL19jfF4wC7M1hxLG3xNZ/aHaOJBe9+uijpq35Cs7tebEELJKe6VsurFXdAwJUui3Eatla1gfVOoItSaDBu4LBCxI0kdjprfQk+LQW4jXyq6xv0ylnS0PMT2x4Ko9zN8TlFVYu0GJldY40ZnYEqoVBcBSxIzHdlUnfwqj/ALKa1mccTZRfU2B1NuQ93nXmGHI4aOWQOmgIIutwRYaaCxItyJq3xozeaRal27iFKBkYF0WVfChujAlW0O4gHkdK8p2pP0lB9jL+F6WTqSAxdz3YWENwUAWWO9rDQ7r8Tzqo6lbgHeLG4HAg+zUDd+FT8aCzSNXBt+Jt91/zD3rr8KuxTAjMrAjmpv8AEVgSRys1z4rm9tLDyBBN9/i6CmGzY5SS0Tjei78hZ2BIjTMLO/hbQ77aE3FUeP6NI5l6abEYNHubZWO8qBr99T4W9tj1qXsrtJtnS6jNhpCBIg1W+4PHfc+7wNqRcAtSnCbZFykwyMDYkgrY8nB1U/DyprfeNCDvBAII5EbiP0KobdNHQu6SeLKCGKaKfrJa6HXjlIB6g07+T/GkRthHPih1S+8xsdB/Kbr5ZOdck2btKTBt3iFng0zoTmaMcCpOpTX2fGugYDaid5FjIyCo9cjjG2je7Rrc0FTF0ymSPKJ0miiitjjCiiigCs7252iYsMyqbPMe6W28ZgczDyW+vO1aKuedp5PSseIQfBCtmPK9mk99lUfde26qydIvBXI97FhVIgfobgBpmI4D7PX/ANUYzF7yT5ncAB+VesXONABYAWUchwrI9otr5QAtiWJCKdzEb2a3+GlwepsNL3GSVnW3StkW3ttEnu0UszC6oL6jg8ttQmmijVrHcNRn8DLJ3okS7zDexNkVCCMumqjUgBTfiBfxUQ4cuxs7EnxSyMNbk7hzJFrDQAcLAXaIiqoVRYct/mTzJ5mt4xo5JzcmWpNnrJh+/LGSWKT5xW9VVICpJEutt1izFmuWJa1K5m9tMNnbR7mUOwzIQVlXfmRtG9o3jytxqrt7BGCVo75kIDxtwZG1UjnyPlRboq11YsxBuCNR5U62xteTEbKBkEYyY4IixRiJFX0YtYAHmx3njWflevc20l9BOFAOc4rv82mXL3Pd233vfXduqxUe9lNu4ls7YiYnZ+Gw7JNGVXIwKFIorAXaVjx36a7xXOeA4abr3+PGtxitsbNfCwYVhjo1iGdxEIbSTEDNI5Y3Y7wu6w4VhpWqAQSVocJCMJgPSzI64id1GHjU2BjQ+NpQRZkN7AdR9Y1S7NbGOLxCxE5YlBkmfcFjXViTwvbKD1vwqDtVtkYrENIoywqO7gTcFjXRbDgTv9tuFQ+3RZatkWO2m07d4+jhVVcpNgqgg3zlmJOn0ufS17ZO02jsrg5TqBYg2O5kvvXjb2is/U8Lg7yRYHUC53eG1yNL2HQEnXcYlG0WhNxOgRSbmU3uLg8wfyP96Nm4z0SQW/8A15DYj+G53W+yeHLd55vYO08pyMfCTryUncRyB48t/npnjDAqwupFmHMf34g1i1R2Jpq0du7IY8S4ZddU8B9m74Wp3XE+wHawYL0iPEMxVEBDBS5bUCNgo1N7kHy3i1a3D7RWbDxzzYqUPJGHUKe6WJyL6Ip1Ktwctu131opdHLLG+TSN/RS3s9tL0iBJDbNqrgbgynK1vski46EUVcyLWPxaxRvK2iorMfIC5/CucbEuIWmf95iGaRr8ATcL7yfaDzrSfKLP+zLhwbNiJUj9gOdgehC5T96s9i5RuG4AKPIC1Zzfh0YI9WUtqYwKpu2UWJZj9FQLu3sFZKeJ8npDApJKAI1YKVWMkgR88yqTKzbrtprape1GLDFYiSFc3ewv82h3DX6T69chG4152Zt6dZTOGGbxJqilXBsHLgfWyqNLaRrbrMF1ZXNK3R9hUIoUedzxJ3k9TXl5KYr6NiTZCMLMdyN+5c8kYDwHofIA0p2lhZYXyTRlG62seqkaMPLdxq6Zk0RyS1DisW7BFZyyoMsYO5Re9h0v+XKoZJaqzBrkMGS2hUgq1xwYHUeVSQeZpxu39BrVOWQnhYHiTu6m2tqmZgBbhVns68PpcPpOTuLuZO89XSJymbpnC9DRugtkcmx1JsmPwR++8sPxkhC+81Q2tsTEwJ3ksR7o6CVCssZ5WeMka9bVY7WmD0uX0bJ3N1KZPU1UFsvTMTpuFLNm7Umwzl8PI0THQ5dzDk6nwsOjAiisl0QwbRkjSRI5CqTKFlUfTUG4B47+XM1TrSrDBj9IkTDY0+rGvhgxFgSQl9IZdNxOViABYmrfZfsO8oM+MJw2GT1s/hZt91A3qNOVzw0uwiwJ+zPZmfHPliGVAfHI3qrbUgc2trbTqQNak7Y7Lw+EnEOHmeYqt5XbLYNcgKoUaWAubk7xutWrxvaCfFD0DY8BSFdC6eDS97ltyi5J87kXPiKX0TA7P/eFcdil/wANP3CH7ZI8Z6fAb6ry7LcRRszBtMCVPiRPBGEuzgkkg2tZdT841/ogX0A0uwsXnTKTdltqeKn1Seo9U+VIMZ2pxGIxHfy92zFBGEyARhVOZUC8g3iFydRXrZuNyTFyxbUlmYBSVcjOSBcCzG/6tSa9L4pU6NHtEZcsw0yHK5/3bGxPXKSG99e+zUOIxGeAmzxO2YdCSLjpcNV1owbqw0IKkdCLGmXYLs/O4fFYbEKMTF+zNDLcIQmVWdmFySVyOLDf53rNdqjab4tM3XYDDPhy2Hc3zqJVvzUhHHsHd++irXZrs1iIpfSMTijNJkZAirljXMVJIvdifABfTyorWOjlyO5WhZ2zxObHwx30hheU+chMae26+6s/j57Kx6fjoKs7ZxObaONP1O4iH9AkPxpPtefKt92t/YAT+VZS7Z141UTFbRxl5JSLE37tOFshy8N92D7/AK56VZjbKABuAAHspNA7WjuLA3cXG865iDx1FvZTXDYSaRGkjhlkRPXdEZlXjqQOWtbo4m7Z7kkvv1r5PjXKorM0ix+orMbKCblVJ9UH4acqo99cXBuDuP4VBiJ7KTvsN3OhBvtj7Mw8w9IwDZsQinu4ZnzZJL27ywQFiqk5VsbNYndesXj45I3KTK6yEknPqWJOrA/S1O8E76sdqPmsT3UZKHCqkAZTYl0F5XNt5Mhb3CmWE7bJKvcbTiE6bhMos68Lta1z1BB+0KorXZfozDyU02HiMIsUnpCRtJ3iFBJn9W6XGZEaykZ76cNzXGVntPsQ7J3+z3GLhOuVTd16W4+RsdNM++sPLJa99CpIIOhBG8MDqD0q6dlWh92iwGFGGjxMDuDLNMiIyaOkbayLawjHjAy24aWsay9ixCqCzEgBVBJJO4ADUnpWs2zsyaaTZ+Aw6FnTBxuy7grTEzyM5PqgB0ueGtNI58HshTlti8aRbPb5tb7xHrcqNBe3iN940qrkl16So2eNl9mcPgIxjNpkFt8WGFiSeBbeD5+qLaZjoF3aTbE20sPLiM5UYdxnw4vYRPosoN7scws99dVJNZjau05sTIZZ3LueJ4dByFMOxmKVMXGj6xT3w0o3XSXwH3Ehv5aV6yf6Quwu0Zo0eOOV0SSwkVGKhgL2DW4an31VAq0uzZBM2GAvIrtGRu1UkE9BoavzdmcSqsxQWXU2YG43krztUuUVstDDkmrjFtCamsRBMZt6xyk33hgAAb6aHd58aV0wwwZoHUX0BLWF7Bdb9AL1OzNPuze7Klzwox1NgD5jQ/h8afdjZWTE4lFYqXiixCEcGQmKS3A3BS999hWf2Gbq33yf6gDp7b072Gcu0MKeEiYmI+1FdR70JrnR2y7RvezvbEy4j0SaMLIVZkdT4Xy2uCDqjanS7A2Oo3UVko/m9qYNuchU/wA6Mv4kUVpFto5skVFkGJk/bNo//wBAHujFqRdq5LQSW+pJ/wBjU62uuTaO0F5yQyDyaH+4PupF2jTNCw5hl96MKzezpX6f4ZvH4WOOOB0FmkW5Nyb+FSbgnS2Zdw4nfYVt9gpicR/so4HEKqQLGmIh77u2V1kzYh3QkGRXU6HX2XrmAxBIQZiQMxCkaLmNzkN9c1gToNee8tNm7b7iDERxxgTz5UOIzeJIfpxILaFjva+49BXTRxHrbeJjbFYl4v3bTzMlt2UyMQR0O8dDUeyPFicMp3GeEH/mLSzPRFjDG6SjUxuklueRg1vhR6FlzauILTzsd5mlv/zGqi70w7W4fusbiYxqO+dlPNXPeKfcwpQTULQZa2ZtOXDP3kDZTe5GuU+wHQ9RY10XZm18PtQq+IwqNNHnDHKrSSZYyyotyFcncofj8eWk0/7ATMmLMw9SCGedxw+bjbuz1+cKe81ScE+y0ZtGt+UDtDJBnSFFQ4kh5TYBx4FyxTWJu0a2QqDa4N99q5g92JYkljvJ31OkrsAXYsbaX67/ADJO819y1MI0JSvorZaM5WzDepDDzGoqYrVnZWB76eGG37yWND5FgD8Lk+VXZVDPtXiGg2piZI7ArKW13eIAsD0OY1Z2p2tDxZIlZXYWct9C+hA5k8D+dU8VtFH2o2JcnuvS85KqHORZNCFOjHKorRbb7XwPDiIlu7SIiixkKszIqO0hlUPIIxGrI7+PO53is3jjKmzpxf8AXlxRlCDpMymxNipODmxmHw1iFAmJGYEesLDcKY4PYSiSWASriVWx7zDNHlJKFrAzMouLHmfCdONZorp76Z7IxLRRSMrslwfVAN7AaG+7j4t+8cTVzmNx2ditFH1hgP8A0lp1gF/bMCf9+3xgl/tVbZmGyRRKd6xRKf5UA/KmOBjvjcCP97K/sSBwf/sHvrnezt/iTbSFsdhOmJi/7qKk2kl9oYMDjiIz7jc/AUVeGjHNs8dv4THtUnhPhVI6tFIc3uUg++s1tMXjbpZvdvrdfLFhsqYXGW/czZXPKOVSjfG3vrETDep6g/garLZridxObyALdbahiM1zuGgFt1tL33614z1f2nAyylV3vZLcyCoA13Xsh/RpU5tv0reLtHJJU6JS1eWOmtO9i9l5Zk7+V1w2GGpml0uN/wA2u9jy4cr7qrdoHwd0TBrLlQMHllOspJFiF0yga23aHdTkrohxZb2nfE4OLFjV8OFwuJH2Rf0aU9CCYyTxQc6zxNX9h7VbDS5wodGUxzRN6skbesh68QeDAGp9t7GEa+k4djNhHPhk+lGT/hYgD1XG6+5t4poCcmnuyBkwGOlNx3hw+FTrd+/kH9MI8wxpDTzaByYDCRX1lknxTC3C4gi9nzUh9pqSBUlSgXqJDXsUB9tTvs+e4imxx0Kq0GG5maRSGdekUZJPV1qvsXZPf5pXYQ4aM/PTEbvsRj6cp3BRfmdK8bc2mJ2QIndQRLkgjvfKt7kseMjnxMeflUb6J0LESwtRam+wWwfjTFrLZrZJojcxEbyV+kDfXfu0HGptsdmZYU76NlxOGOqzQ6gdHW5KEceGo1pyV0Txb7M/JuptgMEZESBR45mRAdfDna17Dfob+ylkSZ2CjifhxNdF7B7OzY3M4tHg42lO7R3GSMdTbMw+6N3E3RCVujVYpB3rZRYA2A5DgKn2DDm2gh4Q4aV/IyuqD4RtUeHQsbneTf2k0z7JtCpxOJmkWNJJ0wyFjbN3V0QD70jSHr7K50rO6bpEWEw/e7XiABIhDyMQLgeEqt+Vy2nlRXRMOFtZLW13Wt13ca+1tFUcc58nYr7YbIGLwU+HIvnQ5fvL4k/zKK4bszEF4lLXzL4Hvvuulz1IsfO/Kv0Ua4J2x2eMHtGbhFKQx6BySjeQYuvl5VSZrgl4ZjtVgsy5xvOn81jYnoRp7qlgxUEKJjosPBNbwd04/ck2MTSLc5mVlYZmALZl3aEtsRGGBRhobgj9caxW0sJ3UhzANa994GosrixB3623ZlsbgkUg/C2aH8kRbX2vNiXzzyFze4G5V6Io0X8aok1LPCVsSDZhmGlri5GYdLgjzBqG9bJHMwNXtj7Xmwzl4mAzDLIjAOki8VkVtGXz3X4VVwuGaR1iQZndgqjmSbD2U67ZYTDQSphoBdoUCYiUFj3kp1bQkhQu7S3I7qh/Qr0+yts/EeI58A/HKpxEB8luJI9eAzj8mXafYDGVI1xODHo8MUGV8QsLXVczkrLa13d91ZvYWBWfFQQN6skqK+tvBcZ/8t68YvFPiZ3lsS88rMFFyc0j3CjnvtUUBrF2bb6WLwKdfSlk+EQYmpVXAQeIvJjnH0AGw0QP2ibyv5WQdeava+ypMLM+HmyiSO2YKwcaqGtfnru31WWpoWMdrbXlxJXvCoRBaOJBkjjH2EGg89SeJNUad9kcHBPK+GmFmmQrBLmI7uQeJbgaENbLqDyG+k88LIzRuMroxRxyZTY/hRPwV1Z4q1s/a02FbvIXKHiN6sOTqdGHx8qqsQKubC2U2IbMQSi33X8VhcgdANSeQqX2LNbs1op8+0JcNHADEwyRIWUsozPKV0CscyhV0ueJO7ZbJ2X6LhFiK5ZsQ3pEy7yin93GT9lco8w3OkvY7Zayv6XKLYXDsMoBNsROpOQWJsUQ26XtyatPmaR2kfVmNz+QHQDSspvw3wxt2zxI5jjZ19bRUHN2OVPcTmPRTSPYM+FlZX7nOsSjCDNr37yMERzwsqB2vwErVofRhNP3Rzd3CH7wrvzlSHPkikL0ZzS/Ymxo2XDrG1heRwv0+8ma0WYHcI4c7EcbGs6NnJHQux2FSPDDIgRWZ2VRuyliEI81CsepNFN8PEEVUUWVQFA6AWHwr5W6ONuyWuffK1swMkWJIuqExSjmklgL+TAD+c10GqW2NnriIJYH9WRGU9LjQjqDqOoqGrRMZU0zgHdtGwick6Xic/TQcPvp6pHEWNV9oYISrbcwvlP4g/ZPGnuAwqyK+DxN1aNyuddGjkQlRIl+HT6QNLsVhpIZDBOAsoFwV9SVf4kXMc13rrWNHbaMNJh+7chwwUE5wN4vuIvoVOmvL2XqSQaZhu/WlbjHYFZVsdCB4WGpHTqv2TSGOA4aVTJHnQNmyXtG5ta4LAgMPqsOG+1axn9nPPE9ovdmovQ8K+1HAzsWhwani5Fnkt9VRcewjiKyRJJJJuSSSTqSTqSetaPb3o8qxiBnBvpG7CNUJHj8BskZNlN18JObdwzrRHhr8D7qsl6Yt9UM+zr5GnmvYxYaZl+8+WBT7DNfzrQfJnJFhlxm05EMhwaRLGgIU5p37vMDY2sL2PU1j48S6o8e5ZMmfTfkJZRflc3txsOVXtgdoJMIzmPu3WRckkUqCSORb3AdSdbHUEEVJA27X7OgEeEx2HEipjRMxjkcyMkkbqsnjOrKS17nXfWdFX9u9opcWyGURosa5Io4kEcca8Qi34nfcmliuToqknpc/AUIJ1JFiCQQQQRwIOhHW9abtIhxWGTai2zAiHFqNLSAAJJb6rAgX+6OdIsNsWeTeO7HN9P8o199q1XZ7Z2GgJSWR3dsjd2t37y1yAIo753F9A3q3JO42Nelr8M5snYby+OS6x+4t5ch8fxrcbA2EMWND3WBj0llHhzEb4sPz10LcPOmg2CJH73GfNREL+yRkBpMoyqZchyoLW8C36tcm7iWYyZVCrHGgskSCyoBuAAsPhVJTrRpDE32yWaUPkREEcMYCxRjQKtrA+dv1vvPcoBk/eMDk5KBo0rdF4Di1uRr5horZRlzM18iXsW5kn6MY4t7BrU+LwzaRqwaaVgpe2l9wsOEai9l5Lffesjo6XXg47E7NURO2XwvdFB1uguGLcyzFieelOsLsaCOQypEqud5UAXuACTbebKBfkKtYTDLGixqLKoCjyAsKmrZKjklK3YUUUVJUK+Wr7RQHJ/lN2b6Pi48YgsmIskn/wAqr4T/ADIv/T61DtNDi8IkYjWVkcMBfI4GU6wuPVkvlte4NrEa10ntPsZcXhpcOxtnXwtvyuDdG9jAGuPdncc6ExyLkdSVdT9FgbEHyIrKSp2dWJ8o0IUxYAJdrqDlMhXIVbcUxC/4cl9L6qbGxq06XFiAQeB1BH9q0Euwo8bjjCZDh8SYmeOQKGWdNLd4L6uuqt9YLes/tns9jdnk97FaEH10Blh8/D44+twBfnVaZfmk6FOM7Pow8Bt9lrlfYfWX3mlcuy5kBFiAd+gkXfcarqouBw4VpYsWpAY+EHj66/1pce+1WoxpcajmDce8VKk0JQUtmJWFrWCqx1uVca7gBZrbrE7r+LoKY4HBR3Pe4d/VFrqzDNmGb914vVvl67zbWtM0St6yg+YBr4uAi+ovsFvwq3yMz+BfYmxOAiLKYMJMVsbgxlWBsMoYv4c173y6e8WkwmDxFiBDHHpoXlVbai+keY3tcajjzp3HhEH0RVqOMDcB7qfIx8C+xfhthkgd/iCQDfJAuQX++4zEaD6I3ac6ebNjjgUrh4liv6zC7O3PMzEsb8ibV5VLC50HMkKPedK9ekxhS97qN7AhEHO8klk/pzHpVXJs0UIxLcMRY8WY+0mpZcWkZVRZ5GJCKPELjUjT1yBqQPCLeIgaVBs7DYvGDLhYgIjoZpFeOG2m4Naac7+CpfnVbanZ/uJRgVmabE4pgk2IIy93hlGeRIwNEuARppqBxpx6Kuduka/s/IDhxOR4pbsXJzF1BIQ3sAFI1CiwANXuzGHMkz4g+qnzafeNi7ewWX2tSfaeMJKQQgXYrHGvAaWH8qgXPQGt1szArDEkS7lFr8Sd7MepJJPU1aKK5ZVGi1RRRWhzBRRRQBRRRQBXKvlT2IYZV2hGLI5VJ7aWb1Y3Pnoh65K6rVbaODSaJ4pFDI6lWB4g/rfUNWi0JcXZxaXEs0SYqL9/gmE6gb3j3Tx/0/i1dnwONjmiSVGBSRVdTcaqwuPxrh+Kw8mzMZ3MniUEmMkaTRHQjkWykqwG4m+lxVTA7GRzIA5kjjd0hJJ8MeYsqjlbMazTo3ljU3aKfoMYGZSYmJsWjOTXPa7D1SLVHJGyM2qPZmGYfNsQCRe6HW++nB7OJ9UV9PZpOQrJRf2dArjxbc39pWT8Rf41KMa38RfbGB+DVfHZhOQqWPs0n1R7qkCz05/4qD/hg/i1eG2kw+m/8pWP4qt/jTkdnU+qK9DYCa+EUAghnZ3QXRLsozt86y3Nr3kuPwqXZ8QeeJpGMzCaMBpGL/4i+qGuANOFOv8AYMZ+iKil7PJf1RUU/sUdvxGJVFLXFh162A95ArlMGPzy4jGE+uTFET9RWu7jlmey/wDDPOsxtPZRhCvEcj5gL3NtTbxcwN9vs1f2FgWx2ITBxXWGNV7xr6pENALj/EfUDjcsdbVrdmEYLH2zd/J5s8yM2NcaG6QAjhfxyDz9UHkGO5q3lQ4XDrGiogCooCqo0AAFgB0AFTVolRzylydhRRRUlQooooAooooAooooCttDARTIY5o1kQ71dQw+PHrXLO0OGjwuLeGGMJEqoQF4ZgSx5kk3NzXXK5j28itjWP1oUb2guPyqk9G2D9hCNoC9ja/LjUq4m9K8YyBE/iM981vo5PVvyB1t1qbCPcVkdQz740CU1Xr2D+vfQkn7018Mu81EK+g/2oCZZTRJIa9QrrXrEZBcNbP4e76gB+8t70v7KEM9bGwCYrEJBMuaM5iRcrewJGqkHfXTNlbKhwyd3BEkSb8qKFF+JNt561gewJL4hGO/I5/Afn8a6XWsNHLnf5BRRRVzEKKKKAKKKKAKKKKAKKKKAK558oUdsXC31onX+lwf/Ouh1h/lJTxYV/tSJ71Df+FVlo0xP80c8xLgQ2PrMwC9LZi3kbV9wJr1jZAIpFsSWYBSBus6uSehCkeZFR4GsTsQyr1+vyryu6vVCT6R/wC6+qa8N+v17q+rQF3C1FtXEqBkt49XBtuUKwOvmV06VLhqo7dxGmTKbqrHNbQhsoAB42Kk9LjnQg0fyZx/OE8ore9l/tXRqw3yZxeGVuiL+JrcVtHRx5n+bPtFFFWMwooooAooooAooooAooooArH/ACmJ8xC31cQnxSRfxIrYVmvlDjvgXP1Wib3SLeoei0H+SOZ4gtkmCAG48VzaygqxI6+G3tqjgG1q6+rOM+S6G50+qfDr9a2X20vwR1vWB3Dha+3qNGr7moSer19WvAavSmgL2HNL9tSsbKVIAAym98wZrnThqpHW1XoW0pZtS+YBmzDwFLcFILW6799CDofybxWgkbnJb3Ko/G9a2s78n6fsSH6zSH/Oy/lWjreOjim7kwoooqSgUUUUAUUUUAUUUUAUUUUAUm7XwlsFiABc905HmBmHxFOa+Fb76BHC4pR3gNx6p1IzDcd4476W4N9f18a/QGGwcca5Y40ReSqFHuAtSbbXZLC4kl3jyycXjORj97g3tBrJwOlZ++0crV6+mStO3ZKEH95L70/0V8//ABSL68vvX/TVaNeaM0Wr6r1ox2Ui+vL71/016HZSL+JL71/0UofIhIsthSnGSKJLABdSTrfWw1v1NzpprXXdi9lsNDZwpdxqGc5reQsAPO16dYjCRuMrorjkyhh7jV+Bk8yT0LOx0eXBQDmgb+q7fnTmvKIAAAAANABoAOAFeq0Rzt2wooooQFFFFAFFFFAf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEBUQEBIVEBUVERIQEBUVEBUVFRcWFRUWFhUVFRUYHSggGBomHRYVITEhJSkrLi4uFyAzODMuNygvLisBCgoKDg0NFRAQFy0dHR0tLS0tKy0tLS0rLS0tLS0tLS03Ny0rNzctLSstLTcrLTcrLS0tNysrMistLS0rLTcrK//AABEIAOcA2gMBIgACEQEDEQH/xAAcAAEAAAcBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABJEAABAwEDBgoHBAcHBQAAAAABAAIDEQQSIQUGEzFBUQcUImFxgZGhsfAyQlJicsHRY4KS4SMlU3OTosIVM0NkdLLxFiQ0NdL/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQID/8QAGxEBAQEAAwEBAAAAAAAAAAAAAAERAiFBEjH/2gAMAwEAAhEDEQA/AO4oiICIiAiIgIiIKNttAjifKdTGOeehoJ+S4vbc9bdNrn0QPqxNDAOh3pd66tnhJdsFpP2D2/iF35rhN9Y52rF4/KE7sXTzOO8zSE95UvHJf2sn8V/1VppPPn5qGk8+fksdqvOOS/tZP4r/AKpxyX9rJ/Ff9VZ6Tz5wTSefOrrU7F5xyX9rJ/Fd9VMzKE49GeZu6k0g8CrHSefOvqURIgz9jzvt0Xo2hzxulAkB6S7ldhC7FkO2mezQzkBpkhjkcBqBc0EgcwJK4AHruWZR/V9m/ctHZgunCpWbREW0EREBERAREQEREBERAREQEREBEXPOFXLU0ToYYJnxXmSPluOuuIq0M5QxAwfqIUtwZ7hDtDW5OmBIBIYAKiuMjAcOtcQLvPn5KlbpyDfcS4uN15cSS4a6OccTiAepUDax2dpWL21Iui7z+ezrqpS7z+StTah29yhxkefmpgu73n8/kl7z51K04yEFpHnYmC8vefOtRDlZ8aTjQ1d/yKYL8O8+cV3LMKYOyfAAQSGEEVxHKdrXAOODXTqVxk6c/wB4xzmOvOAc1xa4AGgo4YhWdFemEWjcFmWJZ45o55XSmNzC0vNXBrgRSus4tOvet5W5dZERFQREQEREBERAREQEREBERAXDM+8rC02+R7SCxlIIzvDK1PReL+qi3jhCzt0THWSzO/SuF2V4P9006wD7ZHZr3LkFofFE3lEN3VOJ6BtUs0W2WXVYLuJvA4Y7CsY0v9kqpPlNleSCeqnirV+UBsae5JMXVer93eEq/d/MPqrM273D2qU20+z3q4avuXu/mH1Tl7v5h9VYccd7Pf8Akoccd7Pf+SYayFX7u8fVKv3d4WP46fZ71Hj3untTDV64v9k9iy+SHUiAOBq40OvWteZba6ge76q6jmdrLXU+GvgpZprp/BplYQW4McaNnboea/WsffVv3l2heU4pa4sdShrgaEEaugruvBxnu22xiCchtpY3GuGlaPXbz7x16tSTEbuiIqCIiAiIgIiICIiAiIgLWM/c4uJ2ekZ/TSksi90AcuSnNUdbgtnXC+E7K5lypJHXkwMZC3dUtEjz2vp91BqmWsq6MUbypH1NTjSpxc7ea9q1d5qS55LnHWTrVzbH3jpT6xNOgau5WlUES5S3kIUKIF5QvKNELUEtUJU1zYoXEEt5QLlG6oFqCF5Xtgys+I+23a12PYdisqKBCDodiydDbYtLCbjxhhrB9lw2rGwtlhmqKxzRODgW4EEei9vNh4hYXNLLBs1pa6vIcQyUbLpOvq1rpOeNiA0VqA1PbFJTayQhvcS09SDquZ2XRbbKyY0DxyJgNjxrI5jgevmWcXLuDG0aK1PgryZYy4D3mY+BcuooCIiAiIgIiICIiAiIgLzPnbPeyjbXbrVaG/ge5n9K9MLy1l19bVbHb7XbHds0hQYa14MYOZWQKv8AKjaBg91Y8IJlGiBRG3f5qqA7hr6Fmsn5q26bGOyTEGl0uj0bcdRDpLoI6CsIfR68fl81t3B5a5H5UsgfJI8XprodI52qzy19I76IjUqYU240+Y66d3OsjkrIFptQPF4i8MIEjy5rGNJ1Ve8gVG6teZWBHKA20w6fU/pW0Z3O0dnsVibgwWJlslaPRe+dzi9xG0i7huBRGGy1kG0WW660RGNjqhjg5j2OprAewkVOJpWuvcsS7WtpzPdpLJb7I7GLiM1sa3Y2az3XMc0bK1oaa7oqtVJ5I7uj/n5oqBUpKmfrG/apHKKkcV2W3WjSZE0pxPFWSdbWg/JcZK67kzl5vkf5SVvZeCCqzKb7NK20RkBzL1CW3hygWmoqK4FdoyPbNNZ4ptWkijkNNVXNBNO1cHyoaw192vcuz5jPrk2y/uGDsFPkp6M6iIqCIiAiIgIiICIiAvK2VXVltJ3zWg9r3L1SvKFodUyne957XFBb5eFCz4FigstnF6TPgWICCp/z9UJ9Yaxr+R87lKDTFTVANdh8No6voqiZoxHskGvMPW7Poto4Nf8A21nGwGW7j9hLSnSKlay1tBo9rqEbvd/F/wDKzGauU22a2QzOaXiAyOeAQKh8b2OOPsl3YCojDCtwk+lyru+7656qntduWz59VIsErRUPydZWg7y2/wAmnSStcvgnTbG4FpO31RT3sSeh6z1jy/FxZtnt0bporzzZZInhs8QkNZW8oEOaHUwO3VsoE2ZjQDbjjoxke2guGOLrgpXfUEDfdWqOGJJ2UA3e7TeKYrZspZXhZZ3WCwwvhbKWunkkla+aUtNWRm6A1rTgaDXUc9dccA4XQfQ1nXUbXDo1dFEVRrQV2nw2nzzqV27tU1am9sGoeAVMlUSFdezSN7IZH2Vob/M9cgJXXMwTXI7h/qR3u+qirW2Gtnad8bT2tXY+Dt1cmWb92R2PcFxsNL7NEGgkujjAABJJLAAABrK7PmDZXxZOgjkaWODXVa4EEVe4ioOIwIU9GwIiKgiIgIiICIiAiIgLyWw1aec+JXrReSofQ7PFBLnH6bfgCxFVmM5PTZ8CwyCZVYG1wOI19e7r1dm5UVORqaNdcen8vqqKzHVaX+s2t35mnu17xuU7nlrRI0cp9L419ApufSvUpC+pEmtrQbw8RT3q953LbMhZqMmmDf7Qs9+cO0LY2vmdVrS8E4BoLA07dlKqI1lzAHiEYMcHFxOzE1ccf8O5T7jvaRrbznRubyY/7tuGJGAZz39feqTGlrDEah7qlo5gRVv37tfuN9orYLJm611mjntdp4pHec1hERkklLKAua0EUaz0L5OzoqMa4XlzDKcXYtB1YGnL6r137zfZWeyBkls8Er9E58h1G8Qxv6JziKtNA4mjqSUa4G6HA4qGVMixmJ1usdoFqgjIZaGGJ0Mkd8UAcw1qx7iReGq8d2Gv1oXEmofg094cRzV6ieZDG15ZzSis4iY58nLtlnie5zQ0NilBDi7c6rHUOqgVllrJEMcc5EJhe2zwThrpJCYnOtJhLSHHEOZdfyseVhhRaziQWnWKnHvHz7d6pEoqQrrnBua5KePen8FyJxXW+DM/quT45/8AaEE2bjv/AAPjsfixd+Xn3Nw4WD47H4xr0EgIiICIiAiIgIiICIiAvJbRRpG4+BXrReULU2jpRufIOxxQW+cvps+BYUFZnOb0mfAsKCgqtO3dq6UrQV2nw2nr1dqlUQ7G9u1Dw88yCqz9n7Xpcx2dnzK2ng0NcrWdlMGGa7h9hKHV6Sa9S1CtBXaaj6+Pits4M3frWyb6y3uf/tprmPMKoNa0tQZvWZgKAUrhcd93AdTFtWfk5Y2wtAq3+zYOTSgo8uMgG4u5P4VqTnC8PZuuqNWGN/Cu3GnVuW2Z5C/FYbW3GN9iisrTTBs8Dnih3HlHA7kEmZTKcfs9eS7JNse4nAFzbhYT8NT0G8tSkNatpS7W7voPSB59vatozJbcsuULU/CNuT7RZQ7fJaC1rGV2morTZXnWpl2p20EA9I1Hu7udAJqA4axQH5H5dSkk3jb3bwouNDXYRq8R55lTcdiCQrrXBqf1XJ8c3+0LkhXWODo0yTKfenP8oQM3TyrAPtLH/uYvQq8zPdSCIbo2dzQu68HUhdkyzl2JuuHUHuAHZRBsiIiAiIgIiICIiAiIgLytlcUmtI3T2gdkjl6pXlvL7KWu2t3Wy2N7JpAgxmcv+GfdPyWDCzmcXoRHmPgFgaoJ1EH81JeUCVRUb7O/V07Ff5IynJZpo54CGyRXi0ubeHKa5j6t20DisbfTSdu1QVS+pv7tnPs7dvQVlMjZyT2Vrmxua+KU3nRSxtljJ2uLHbRqwpVYW+NWzz+SgZN+rYgzeXM47RamNglLGRtN6OKGNsUQdsNxuskHWd41YrCu3bB5JUpk27VKXIIucpChcoEqiUrq+YxpkaU/6g9y5OSuoZsy3chSn7O0nvcoLCd3IYNzG+AXe+DsUyXZv3bj2vcV5/ndqHMvQ2YrKZNso+wYe3H5qejOoiKgiIgIiICIiAiIgLzVnjZ7uUbY3faZnfjcX/1L0quK8KuRtHb3TAcm0MbID7zAI3jsDD95BzPLYrZ43bqd4WvLbXwXo3wHAjFvRrH0WqzRlri1woRgUElVLVQKhVBGqKrYnM0jdL6F7lazhzgbK0WRcYatc50RLQ4uaxnIccLoN1oqK1O+g50GIqoLKMdA2o5LwZHlpLR6Jawta4kVGN4VG4qgHRUGAvaO6cMK3a3jz1w60FjVQqrp7o6EYYltCBiOSKnorWqtpSLxpqqadFcEEtVAlQRAXQ8jz0yOWe02Rv4nkfNc8C3Gd+js8Vn2hrXyeIHb4IM1mzk42y2x2ZpALr5xJAo1hca06F6MyVYxDBFCDXRxsjrvutAr3LivALksyWya2EcmGLQsOwySkE05w1v84XdEBERAREQEREBERAREQFgs8MgC22Yxigkab8LjscBqPMRh2HYs6iDzPlbJ72PLXAxyMJBBGIO0HeFgbfGyT0xcfqrsPXtXobhAzTFriM0IpaGNw+0aPUPPuPVqOHBrbCT6vZj3Jo1qawOGqjlbus7hsKzL7ON1O5UzAOf8R+qDDmM7lC6subOOf8RUOLDee1Bh7qhRZjio5+76KHFBz9v5IMRdULizHE28/anE27j+IoMPcS4syLI32e8qdlkbsaOyqCxybCA4PIrTEDZXZXm5lmLBYprXO2zwNMssrqAeLnH1WgazsAU9myXJI4NAxJDWimJJNAANpJXobg6zJjybBUgPtEgBnk102iNh2NHecd1GjKZm5uMyfY47Kw3iOVK+lL8jvTf0bANgAGxZtEQEREBERAREQEREBERAREQFwnhJyWIMoSBoo2UNtDRuv1D/AOdrz1ruy59wqZvT2gwy2eIy3GyMlDaXgCWllBrPr6lnl+LHFMqt5I+L5FY8RFZ/KlgkbyXxuYW8pzXtLSBUNrQ463NHWrEQqS9Kx+iKaIrIaHmTQ8yaYx+iKaIrIaHmTQppjH6IpoishoeZNDzK6YxxiKyOTW/o+s+KhoVkMk5Plk5EUb5DUmjGFxodRoFLehuPBPksS27SuFWwRmQfG7ks/qPSAu1rR+C3IE1limdaI9E6RzLoJBN1oOJocMXHA7lvC1x/EoiIqgiIgIiICIiAihVQvIJkUt5QvoJ0VO+l9BURUr6aRBrfCcyuSrRzCN3ZKwrgjV3/AD/5WTLUPsSfwkH5LgDVjksVApqKUeexTrKoUSijVEEpCgVOfPapCgpuXoDg6bTJdm/dk9r3H5rz+5egsxTTJtlH+XYe0VWuKVsSKlpEvraKqKlpFG+gqIqd9RvoJ0Ugco3kEyKFUqgkJUhcouVNwQQL1IZFBwVNwQTOlVN06kcCqTqoKjrUVRfbyNipvJ3K2lvbkFvnDbdJZZ4gKl8MjAN5LTRcSLSDQggjWCKHsK7NabK5y1rKOaZkNSXdqlmq5+FGq2x+ZTthKpHM1/Os/JrWKpVbQM0n7vFP+kn7vFPldauoFbSMzX86qMzKdtJT5TWoBtTQAk7AMSu2Zt27R2SzxEULIImuG0EMFR21WqZPzR0ZqCe1bLZrI5q1JhrOst5OxVW2orGxB25XLCdyqL0TlTiZWjaqq0FBciRTiRWzQVUAQVw9ThyoAKo0IKwKmqqbQpkE91SliIggY1KYkRBDQKXQIiCHFgocVCIghxQblDiY3IiCBsTdyhxFu5EQOIN3BOIt3BEQOIt3KPEm7kRBHiY3KIsg3IiCPFQo8WCIgjxdR0CIgjoVERKKIIiNRDERBMGqNFBEH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhMTEhMWFRUXGBgYFRgXGBgXFhYVFRUXGRYWFxcYHSggGBslGxUVITEhJSkrLi4uGB8zODMtNygtLisBCgoKDQ0OGxAQGzclHyYvLDErNysrNy0rNzUyNy03Kzc1NTcuMjg3KywrNSs3NS0rLjcsOCsvMTArMTgrNS0wLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAgH/xABSEAABAwIBBwYICAoJAwUAAAABAAIDBBEhBQYSMUFRYQcTInGBkTJScqGiscHRFCNCYoKSs/AkJTNjc3SytNLhFTRDU1SDk6PCFuLxRGSEw9P/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAgED/8QAIBEBAQEBAAIBBQEAAAAAAAAAAAECESEx8BIyQVHRA//aAAwDAQACEQMRAD8AnFERAREQEREBEWPy1lqClZpzvDR8ka3OO5rdvs2oMgqc9Qxgu9zWje4gDvKiXL/KVPIS2AcyzZqMhHE6m9netLrK90pJlcXk6y4lxPacUE1ZT5QMnQkg1DXuHyYvjD3twHesDPyv0gPRgmd182P+ZUROo4NegO93sKRRMGLWhvnd9Y6uxBMTOVWDbTzDr5v1aV1XbynU5/sJ/Q/jUKSZUDcIxc79n81j6jKTzreeofy9qCfTynUg1xzD/S//AEWPqOV6nbqpZ3DeDGfU4qBzNw7yvhmO1vnQTpHy00fyqeoHUIz/AMwsrk/lYyXIQ0yvicdkkbgO1zbtHaVzxz4Ou461Qkje06bCHcD7Cg6+oa6KZgkhkZIw6nMcHNPURgrhcg5t5xT0s3OU8r4X36Qv0XfNew4OHWO5dGcn2fkeUG6DwI6lgu9nyXt1c5HfEtuRca2k43BBIbkiIgIiICIiAiIgIiICIiAiIgIi0jPjlCiobsYA+QYG56LXHU3DFzuGFtpQZLPDPCGibo3D5yLtjB1A6nP8VuB4m2G0iE8sZYlqJHSzPLnnuaNjWjYBu9qxWWM5JKmZ80xu92uwsAALBoGwAYKy+HhBkSUusf8ADwvUdUXENaC5x1DeUF1I8DEmwVnG2Sd7YomOc550WMaLuefYMCdwAJNgFWdm8XHnJ5tG2vR1C+zSdgdmFlM3I7msyCB1U+zppS5rXeJEx5bojcXOaXH6I2ILTM7kkijAkr7Sv1iEH4pnB/8Aen0eB1rHZ6ckoYHTUAJaMXQE3IH5pxxPknHcdQUxIg5IqMnP+S7RIwsRt7rgqg3J82137Nv2VPXKTmUJWuq6dvxoF5WNH5Ro1vA8ceccdcN1ukWkRu0XbDh3ILGGkd8pHUJ1twPmPYrB8lXc9M9rR7ArvJ1TPpASWcDtsQR5rILOspA/AjRkHn94X3IeVpYJWOa4sljddjhra72ggkEaiCRqKzdXTteLaiNR2g+5YCvp9IG4tI3zj3IOmc1OUGkqoGOlmigm1SRveG2cNrdI4tOsddtYK22KVrgHNIc06iCCD1Ea1xtk7KLtJg2fK4iym7kRzlu6Wifhe8sF/wDcZ6nW8tBLyIiAiIgIiICIiAiIgIiINdz1y98Fg6BtK+4ZvaB4T7cLi3Ehc+ZYycaiUPmm0Ix4LdbscTcnC/HFbbyj5x87VSaJuG9Bu4NbfHjd2kRwIWiy1d9Zce2w7ggydPkyhFhcuPznuuexpHqVxLkGnNugWhwuC178RquNIkHEHuWvc4CHG5Ibi5rjfo7T1DfjbbgvrMpvA0A46N9IA4lpHym78MCNotuAQestZvuj6UDnyN2gtAcPqk6Xm6lls28luiY1zvy0v+3GOB26u0gbFfUNcHsDxbS3bNIbO3DvWQawaTnXv0QAe03HmCDxPCC3QANtVgTc431jEm/ep0yBQcxTxRbWtGl5RxefrEqJszKPnqyBpxAdpn/LGkPSDR2qaUBERBr+fuWJaShmnhbd7bAG19AOcGl9ttr39eC5dr+cc8uY5xBxN73uda68rKZkrHxyDSY9pa4HUWuFiO4rl3OfJD6Oqlp3AnQcQ0+Mw4sd2tI7bhBrlp95S8+8q/EiafV13wQY/Sn4+ZU5mynE33XwWT5373TTvgerWgtMm04FzrKzGS8oPp5op4/DjcHN421tPAi4PArDRHQfY6jh7isvk6Bsk0Ub36DXvYxz7X0A5waX22gXug6pybWNmhimZ4MjGvb1PaHDzFXKtclUDKeGKCO+hExsbLm50WNAFztNgrpAREQEREBERAREQFiM7Mq/BqSaUeEG2Z5bui3sBNzwBWXUact9dowQx+MXO7QA0ei96CFq2fScdvXt4niVakoSvTYnEEhpIGsgGw6ygpSMuraIOxAvdvSB3AHHsxHerxUuaJdhtBDvJcLH1oMlkqRuhVMN9PmWyw2Op7XRucP9J7+oi2xbLkmcOiFje40uPS6WPeR2LVM3DaeAnadE8Q67CO947lks1nuE00TsNG4A3AOd70En8lovWyfNgd3mSP3FSson5JnfhtQPzIPphSwgIiIC0rP/ADAblF0cjZRDIwFrnFmmHsvcAjSbYgk2PErdUQcz595qPyZLHG+TnWyMLmvDdDFrrPbolx1XYb3+UtXkqQBqJ6lPfLnknncniYDpU8jX/Qf8W8dXSa76C5+ug9/Dm7cO5VhM0tDgQdlhrHYsb8EGtVomkC18NyD3V2diFTebSgE3a5ot1aiPavZVGq8BrvFNj1H7hB1dmHlj4XQU8xN3FmjIfzkZLHntc0ntCz6ifkAyppQ1NOT4DmSt6pGlrgOoxX+mpYQEREBERAREQEREBQ9y7u6dOPmn1lTCod5dz8ZB5H/J3uQRbk2na9/TJDGgveRr0GC5A4nAdquWZcAZLG1rWCTTs1pFmhzGt24nButeMj48829iYjYgXI0Xse6w29FpNuCkebPigcAJJJnt09LotkGqRxjfi9oJaHaTgRiQ1w6QN+s1cZnPz358/bnczWr1G1e1jmMmjAaHEte0eC2Rtr6PAgg22Yqjk9t3nyXepbBnhlCOcyyxElj5Y9C7dEnm4LOw4aTW/RWByZ4Z8h3qU799Vj1x8yRHealG+oYO+eL3rNSw83lF1tT237x/2rFZv/1ij/WY/wB4hWfy821ZTu3i33+soU3XkuwylKN9M70ZYvepcUR8nGGUuunkHpxH2KXEBERAREQY/OHJwqaWogP9rE9nUXtIB7CQVyQL7RY7RuO0Lsdco54UXM19ZF4s8hHBr3F7B9VzUGCkmsbWJVejidI5rRogkgXLsBfabAm3UCqcjbi17cRrVKOlAN9fX/JBd1MDmOcx3hNJBsbjDcRgRxVFzLte3eLjrGPtXq3C3AXNu8kr1F4Q+/32IN45CspaGUI2k4TRyR8LhokBPbE4dq6MXJWYdYYK2meMNCoYD5POAP8ARe5daoCIiAiIgIiICIiAoZ5dHfHRDdG0975fcpmUK8uJ/CY93Mx/aToIwpqh0b2vabOabjd1HgRh2q/PwN3SJlj3xta1wvuY4nAdYVrJBGOcIkadEgCztYJ6tgtfdireUAEgG42HfxV53zxzrLmW99Livqw8tDW6EbBZjddhe5JO1xOJKZM8M+Q71L1DBES3SkDQfCN29E6JPrt3r3TMaJXhjtJui6xuDfDgpttvaSSTkfMgH8Io/wBZj/eIVsedrbT0x+fbztWtZE/L0n6yz94hW1Z8ttJDwlt5/wCSxrauT8/jKPjFIPM0+xS8oezEdbKUPFko9C/sUwoCIiAiIgLm/lkpdDK05H9o2KT/AGwz/wCsrpBQJy9Q2yhE7xqZg+rLL/EgjWyL6iD4g+/eD7F9svhHqPqKClESJJAMDe46y0n12XYdDPzkccg+W1rvrNB9q49OEx4tafOAurMxJi/JtCTifg8IPW2NoPnCDOoiICIiAiIgIiIChzlfhD6+nY7wXCBjtmDpZQcdmDlMah7lWP4xpfKp/NK5BePdHKaid8EOlk+orIqYBlmc3BSacYkaPCs7EbjqstKz0poJGfDHSRwzyUdFUcy0BomkqC9s7mNvcBrWhxtfjrus9ljKE9G2pkZGHOflmcCORp0Jo5KQtLSNrXXAvvsrbOSjpanKUsb5GxmCWgpaeFoAY+IyMbOA22AZpvsBuQX+TWyQVD4IYmyTUuSRZnN6elVOfFI/o/KvptC0TKGUZp6uR9RG2OUMLHMawxhpYLWLDiDvUk58/wBJRM56Eta8R5SMjmu6bKV9RC5joy03EgY2PEarFaZnsSa/Sd4bqSB0hOsvMDbl3HAINWySfjaX9YZ9vCtw5QxaVnCd3me5adkz8pTfp2/bxLc+Uj8qP1l/2j0GfzHP4zpvJl+ycpjUMZlu/GdJxEv2Lz7FM6AiIgIiIPhK595acoRz1sb4ZGSRiEMuwg9Nsjy7ss5mOordOWvOGaFkNNEdETBzpHbXNaQNDqN8d+A1XvCNVK4m7jfdhqH/AJQUHG2JXjnm+MF8qD0bbCQD1XF/Mrjm2f3bPqhBTC8TPAGJsvYK8uja82d1hBSfKHSgtx6Nju13C6i5L5NLJdIdzHD6sj2+xcxc2WMOj4X3spv5As5zNTOo5QA+HSdGdRfE513XG0te+19zm7igldERAREQEREBERAUI8uP9YH6NnrkU3KE+XAfhLP0Uf7c3uQY2v52cRyvrpah1NZ8TbRFwe0hwaBaz3lzWDScHXJGvUcJnJkZo5yUzGV7y173kAMLppHabrgaOsg6IOrStfRdo64256IudKw0Rc6RvgLDWbnBZuXNZ7C1ss9NFK7+yfJ023AsH2BDSetRv/TGPuq84t9M7FFUUjqQQ1TmNiMjYbRsBjNRLEHxvacH3Li4gk20Ba2C1+tnkkrJ3yyGV7g4ue4AF3RFsBgLCwsMBZYutonwvdHI3RcNY9RBGBHFVMl+G7yHepVLLOxNll5XzJg+Mpv07ft4lunKSfjv/kv+0etNyQPjqX9YZ9vCtv5RDeVvGocfTetYzuZY/GdJw537GT3qZ1DeY4/GdP1S/ZOUyICIiAiIg0DllyDz9Hz7R06Yl/XE6wlHZZrvoFc911e9mDQ3iSL379S7BljDgWuAIIIIOogixBXK+fmb5pKmaA3sx12HxonYsPHCwPFpQYutrmSBgiHRMTRKHBtxNiJNEgDomwcN2lruF7gd0Rv1LHULLNHb67exVZKnQtqx36kHivlex2B6J1YDDeFbwzPcQScRwC+VlWXdEgYblWogNAdZ2WOzWdv80Fze4x1rYMzsuupaiGpF+g60gHymHCQW36JJHG25a7I6wJXqils62w+v7+tB2DDK17WuaQWuALSNRBFwR2L2o+5Gsvc9SGneenTkAbzC65j7rOb1NbvUgoCIiAiIgIiIChTlyH4Sz9DH9pOprUMcujfj4jvjaO58vvQR1kNoBllIuYo3Pbwku1rD2F1+sBVKHI5nhnn50aTBI9zXBxc/QaHudpaiTpd9r61bZJsXuY42EjSwG9gHGxYTvGk0KtTNqmRyhgIY0Sxy4NNg8MEoN8cRHHiNVsLXN1zyfUzEt3ZPP8WU0rnAFxJLQGi5vZo1NHAY4Kpkzwz5DvUqLxYDecezYq2S/Dd5DvUnOeF6vXvIY+Po/wBZj/eIVtGfbryw8ZifOfetZzfH4RRfrMf7xCthzudeophvff8AZ96JbZmIL5Sh4MlPoW9qmJRByfC+Uo+EUh8zR7VL6AiIgIiICjHlvze5yFlWxt3RdCW2swuOBPkuPYHuOxScvEsYc0tcA5pBDgRcEEWIIOsWQcgPZbDcB6l5IVxlFzDLKY8GGR/NjXaPTOgLnX0bK1kYSWgHE4AbSdw3nVgg+6A3DuX0BZf/AKRrv8LVf6En8KxtTTPjcY5Gua9uDmuBa4GwOLTiMCEFpWeA7q9oVWvZGDEYQQOai0xpB1pQwCQjcC4F1tmkhjLuiBcnUNp4epZakzWqh0W0tRc/mpNf1UGyckmVXMynTBv9sJI3j5vNuf5nRtK6LUa8lvJ38DPwupH4QQRGzAiFrhY6sDI4XudgNtpvJSAiIgIiICIiAoc5dx8ZB5Hqc73qY1DvLuOnT+Qf2igiNV46x7WPYHHRf4Q3/wDlUFWgpXvBLRcDiBc2vZoJu42F7C5WWdVnWs3svFFXWTPDPkO9StVd5KHTd5DvUtSq5u/1mi/Wo/3iFZrL79Ktpm7gT5x7lgshutPRn/3LD3VEKydRJp5S4MaR3A/xBBIHJvjlPqp5D6cQ9ql5RByW45TlPi0z/Smi9xUvoCIiAiIgLGZz1/MUdTN/dxSOHWGHRHfZZNaBy25S5vJxjB6U8jGfRaecd2dAD6SDnpjbADcLLzzQ0g8EhzSCCDiCMQVXslBTTTP5uKJ0j8Tosa57rDWdFtzbEY2QZ/8A67yp/jpv9v8AgWAnlc9znvcXOcS5znElznE3JJOJKvqjINbG0vlpZ2MGLnOhla1o3lzm2CsbIMzmHQ89lGkj3zMceLYzzjh3RldTKAuQvJvOV75iMIY3HqfIdBvo86p9QEREBERAREQEREBRfy50RdDTyjU1zmHrcA4eZj1KCw2eGSPhVHND8otuz9I3pN7CRY8CUHLRCu6SdreZufBlLna8G/FY+i7uVOpisVQQfArygmDGyuPiFo+kLHzKxkfYK1MxIscG7vv3d6DO5tC89MD8hrpHHdbSkBPa1g7Qvebj9Opkk3gkfSd/JW2S5dCOomPhPaImeS4jS/Z9ArOZChGhpAWNg36o95J7UG+ckQvXVJ/MgemPcpcUSck2FbKPGgPoyR/xFS2gIiICIiAoM5csqiSsip2nCCO7v0k1iR2Maw/SU21tUyKN8sh0WMa57jua0Ek9wXLWWK91RPNO/wAKV7n2OwOPRb2Cw7EGNkjuLXI4hbBmbnXUZO5wwNgeZNEOdKx7nWZezQWyNsOkTqWvSzWcABe6rCKTxR3hBtec/KHW10PMS80yMkF4ia5pfom4Di57sAQDYWxAWnyYBVg1eY4HSSMjjF3uc1rRve8hrB2khBOHIXknm6KScjGeSwO+OG7B6Zl71JKsch5NbTU8NOzERMay+8tGLjxJue1XyAiIgIiICIiAiIgIiIIA5R8giCtkaAAJPjY9gc119IDcWu0h1aN1o89Nbbo+UD62ggrpPPjNptbCMPjY7ujO3Hwm32XsO0Bc+ZdqZKSbm54tNvyXt6LjjqNwRffqN0GGMAO0vtuBDR1kpFSF51YbLajwbv8AK1brlZRmUaZwBIlB4tabdRdf1Kq/LULfAYQd5xce1B4Zkt3RacNZA6hu6gsvkN9w5u6x79fsWpVmWH3vHpNd41+kOAwsFsGbdSZWc4Py0f5VtsZIzre0bTgDbeOIQbxmPWCKuhJwDiYz/mCzfT0FNC54knDRzgdhgQ4XO0WItxsp5yHX8/TxTeO0Ejc7U4djgQgvkREBEVplbKUdPDJPKdFjBc7zuA3kmwA2khBoPLRnAI4G0bD05rOktshacB9Jwt1NcoX0VlMvZVfVVElRJ4Tze17hrRg1g4AADjidq1ybKNyNCxB779qC8ybTtikY9zWyhrtLQkuWOtqDtEglurC+NscLrdazlBmfG5jaWjjJFg9kN3N4t0iRfrBWmMhkI8Jqq2QUZCGgk7Fu3InkAz1hqXjoQDS4GV4IYOwaTuB0d60SRrpHtjYC46QAA1ue42awcSSB2rpnMbN1tDRxwYaZ6czh8qVwGkb7QLBo4NCDPoiICIiAiIgIiICIiAiIgLTc+8woq9pLSGSYG5F2uI1E2xa7iO0FbkiDlrLOastNM+CVwD2a7Ygg4tcOBGKsv6IPjeZdH535oQVzOl0JmjoSgYj5rh8pt9my5tZQflrJM1JKYqhui7YdbXjxmO+UPONtigwH9EHxvMqlNQyRuD45NFw1H2HeFf3RBj5M4i1xZLD4RuWsOBN73APg3OOsg995u5Hs5mVFO6nNmywlx0fGikeXBw32Li021dE4aQUOTQtd4QBVnTzzUkrZYZHNLTdj2+E07nbCNmOBGBQdYIo4zM5VaecNjrC2nmwGmcIJDvDifiz812GIsSt3ytlqCmZpzSBoPgjW53ktGLkF7LK1rS5xDWgEuJNgAMSSTqCgzlEzvNbII4iRTxno7DI7VzjhsGsAcSTibCvntnlJV3ZfmacHwSQC+2oyHVx0RgONgVpczonNLecAuNYOPYUFo+oYDYuF+/1LwHRE2s03Pi6z3L43I0LjhK8kfOGruVzHk1jMcTbedSCvNVSuaGvke5o1Nc5zmi2AsCbBY6rnt0W+EfMN69VNZsZ9bZ2b1u/JpydOqy2pqmkU2trT4VRx4RcflbMDdBmuRbMy1q+ZuGPwZpG/B05vvxDeFzjdpUwL4xoAAAAAwAGAAGoAL6gIiICIiAiIgIiICIiAiIgIiICsMtZGgqojFOwPadWxzT4zXDFp4hX6IIQzn5MKunJfSH4TF4hs2Zo6sGv6xY/NWhVFQY3FkjXRvGtj2lrx1tcLhdWK0yjkuCdujPDHK3dIxrx3OCDlf+lWb/MfcvTa1rtRv9+KnjK3JPkua5bE6B3jQvc30HXZ6K1Wr5Dcbw17gNgkiDj9Zj2+pBFEkYHg4cDq7NyqU9e9lgHFtrAA4tsNQF8AOqyk1nIlMP8A1rD/AJZ/iXx3InPsq4/9N38SCO5soadi+KN5GANjq4YlPhENvyAv14KQByI1H+KiHUx/vWQoeRAX+PrXkbooww/We537KCL/AOkCBZjGs8/uXvJmTqmtfoQRyTuviGgaDfKcbMZ9IhT1kzkwyXDb8H512+dzpb9bHHQ7mrbaeBjGhrGtY0amtAa0DgBgEEZZmckscREteWzPGIhbjC3y7gGU8CA3HUcCpQAX1EBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhMVFRUXFxgXFxgVFRYXFRUVFxgXFxcXGBYYHSggGBolHxUVITEhJikrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHiUtLS0tLS0wLSstLy0tLS0tLTUtLS0tLS0tLS0tLS0tLS0tLS0tNi0rLS0tKy0vLS0tLf/AABEIAMwA9wMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAABQQGBwMBAgj/xABJEAABAwICBQgFCgMGBgMAAAABAAIDBBESIQUGMUFREyIyYXGBkaEHQlKxwRQjM2JygpKy0fBDosJTY3Oj0uEVFiQlk/EXg7P/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAAfEQEBAAICAwEBAQAAAAAAAAAAAQIRAxIhMUFREwT/2gAMAwEAAhEDEQA/ANxQhCAQhCAQhCAQuc8zWDE9waBvJsEudpVzvoWEj233a3ubtPkgaqFU6VhjNnSC/stu534W3IS6ale/6WRzvqjms8Bt77rn8ka0Wa0ADgEHSbWQepE49biGj4nySqq1jqTfCI2DqaXHxJt5LtNGl07EEGr01VHbO/b6uFv5QClNRWTHbNMdu2WQ+8phUM96XzjaggVUjje7ic95J96XySO8ymFTv7fil82WJB8Gukbse4bdhI4rszWCoYcp5h2SyAeAdZL5Bs/fBcnm/igtVJrtWN/jOPU4Md5uaT5p3R+kSYdNsb+5zT4gkeSzwuz7l9h2aDYKLXyF30kb29bSHge53kn9DpqnmNo5Wl3snmv/AAOs7yWFwTKfFU5WOY4HMIN0Qsr0XrFPHbBK63sv57PAm4HYQrXo7XJhsJ2Fn12XezvA5zfAgcUFpQucE7XtD2Oa5pzDmkEEdRG1dEAhCEAhCEAhCEAhCEAhC41VSyNpe9wa0bSfIDiepB2Sio0xiOCAB52F56A7Pb7suvclstXJUmxBZFuZ6zut5/p2cb7nFFTBgsAgjw6Ouccri931tg7BsHcpuGy+yV8OKD4eo0oXdxXB6CDUDallSE2qAllQ1AoqG7UunGSaVIS6oCBVOErqyc+w+9NahLKr9+KCE4ZE9S43z8D43XWQ7P3xXIjPw8r/AKoBhzPZ8V0BzK4s2ns87Lo7f+/3tQd4ypUT1BjPxUmMoGMT1OgnISyMqVEUDzR9Y+N2OF5jcdts2P8Ats2O7dvWrfofW1jyI6gCKQ5B1/mnn6rj0T9U9xKz+F6mgB7cLhcEb0GsoWb6I1lkoyGy4pafZfbJCOr22DhtG7gtDpKlkjGyRuD2OF2uabgjqKDqhCEAhCEAhCEHCurGQxukkOFrRcn3ADeTsA61TX1T6l4lkGFo+jj9ge07i8+WwdcXS2lPlk9mn5iI83hI/Zj7NturPemNK1A30fCmai0QyUtB8FfLl9lfLkHF64uXd4XMhBDnCW1DU4mYl9RGgSVDUsnCdzxJbPDmgR1DUqqm+9PamJK6iHyQJJNg+8uTnbB1E+f+yl1TOb2E+aWyG3u80H2x9if3sC6uds7FCdJnbvXXlfd8LIJUZ2KTG5QYn7P3uUiJ+xAyjKlRlQI3qXE5BOjKmwOS6NymQuQMzGHNIKXaG08/Rsx2upnnns3sJ2vZ18Rv7c0wp3Jdp6mxNQa5SVTJWNkjcHMcA5rhsIOwrssb9G+s5pZvksx+YkdzSdkUjvc1xyPA2PFbIgEIQgFUPSNpkxQinjNpJ7gkbWxjpnv6PeeCt6xrS2kflVbJLe7A7BHwwNyBHabu+8geaFgDWBO6QZhLqVtmhNKTage0wyUhcKc5Lug8svlwX2So1VWxxi73ho6yg+i1GBVPS/pDpoiQznkdw7VStK+lGZzi2KwbbLAM/FBrk+Fou4gDrICS1mm6Zv8AEDvs3d7li1Vp6smOdz9ok+RUYwVb8jIQOq4QaxVaxxeqw9ri1o8ylcunmb3wt7X3Pks7Gr0juk9xK7M1UO9zkF1dpSnO2oj7gSuTqyhO2rA7GcVVW6qgesfGy6DV63ru/Ef1QWNzNHO21oF+LV7/AMvUL+jXM7xbj+vkq2dBH23fi/3XN+gXbifegsjtQI3Zx1cTj223EfFcKn0e1ABLS19/ZI4qtf8AB5Wm4c4dw/QLvBPWRm7Jndlz+pQSarV2oj6Ubt+7JQnRObkQRsTem11ro+kA8ddjmmEWuVPLlUQAHiBY9qCvRT5qdBKnD9FUdRcwShruBSus0FPDnbE3i3NBKiepkL0igqdxTOCVA9p3L3SDbtUaleplRm1BQdLQ5ngth9GWsRqqXBIbzQ2Y8na5vqPPaBY9bSsq0yzMrv6O9L/Jq+Mk2ZN8y/hzjzD3Ow58CUG+oQhAn1ur+Qo55AbHAWtPBz+Y09xcD3LJ9AQ2IV59K9RamjiH8SUX+y0EnzLVUtAsu5BaGbFMo35qESpFGxziLIHUVYAvmr0qI2l7yGAb3GyrWsOssNGMP0kvsjY3t/RZvpTSNRWPJkecO5u4DqCC3af9JYBLKYYj7R2Z8Bv/ANlS62uqql15Hute9r5BSqPRTW/vMqa+SOMtYbmR3QjY0vlf9mNtz32t1oFMGhb5uz7Uyg0S0DZ8ArHQ6t1L28pOWUUXGUtknI+yDgYdm0v7E50doWlFjFTy1rwR85UZxhw3ta8CNh62MCCn0FFyn0LHS7rxML23G4vALR3kJ7T6qVBF3MZGP72RoPgzGrs2hq3izpI4G8I24nAcLnLyQzVWI5yvllP15DbwbZBUxoCJn0lXGOprDf8AFj+C9bR0AP08r+wR2P8AJfzV5p9B0zOjBGPugnxKmsiaNgA7AAgocdBQH+HM7uk/oAUhuiKD+xm8KhXdCCjP0To8bpGdol/raVF/4Ro9x5tU5p+sYwB3Fg960NfEkLXdJoPaAUFAOqOLOKpjfwGH+prz7ktrNU6lo+ibJ/hvaT4PwLQ59BUz8zBHfiGhp8W2KjSautH0U08fZIXN/C+6DJq2jbGbStdEb2HKNdGCeDS8AO7rqJPopp3LVqnRlcwEMmjnbvbKyxI4XGSrFZomAZTU0lC7P5ymtyNyb3MdjEe0tvntQUCXRBGbbjsyXel0zUwZXxN4OzVprdX6ljeUiDKyL2oLNlA64XEtf911/qpHDJHLiDTdzcnsILZGHg+N1nN7wg+maRpqnpN5KTjuuuNRSviN+k3cRwUWs0W07Mv3xXGlrpYOaeezgeCB7o+tBTxj7hVNrWSfOQGzt7D8Ey0RpLEMJyIyIO26CJpqPaqxUi2zLgeHWrhphmSqtWzag/Rer2kPlFNDNvfG1x+1bnDxuhVr0R1ePR4bf6OR7O4kPH50IFnpUlvNTM4Nkce8tA/KUt1bj3qX6RTirWj2YW+b3n9F30FSnALbTZAxpqYvdYJLrTrSIQaelPO2Pk4dTV11t05yDPk8R556bhtHUCqLTQFxuUHKKmL3YnXJ3kqfI+OFmORwYwesd54NAzceoZqPpjSsdKy7uc4jmMBsXdbj6revwumGq2q0ksjamuZysxzhpSLRxNOYfK3d9g8LuucgBoXRlRWN5UH5FR/28luXmH9y05NB3Oz3WJ2K/as6CZC0ihgEQd06iYF00vE5853HOw6k8oNCZiSoPKSDYP4bOprdidIFVPoCIEPkvM/2pDe32W7GjqATQCy9QgEIQgEIQgEIQgEIQgEIQgF45oORzC9QgT1Gr0eIvhJgfxjyaftM2FVvWbQEc1vl0PObkyrprtlj4Ekc4dmY6lfF4QgwrTlHUUID5/8AqqQ9GqhaMTATly8bcrbsQ8ybKM5rJGh7HB7HbHNNwf0PEHMLY63QpbifTWBd04nfRSA7RbYCVkWsuq7qYyVejWlrRc1NE65DQNr4xtLR1Zt3ZXagTTU7mHEw2UuKflecObKP5u1eaN0hHUx4493TYekwnjxB3O2HqNwOFRAWuxNQNhVcowg9IbQktaz4qUXEjlG7R0hxXxOMTbjggv8A6Ep+ZUx8HRv/ABBzf6AhQfQw+1RUN4xNP4XW/rXiCdrgMWkHjg2MeV/imktSKanMm+1m9vFQdMsxaTl7GeTG/qluuNVicIgea3370FZs6aQudnc3XmmtIspYsRALjkxvtHieDRvPxITSGNsbC51gAC4k7AALnPsWUaw6XdUyufmBsYPZYNg6idp7epBevRvoV9TUCrqGGQuN4cVsOMHJ5bwFjhGwYSdgut80Xo1sLcs3HpO3k9qxv0VadiewUrjhe2wjcDliG0C4Bab5jqAG7PYtGV+PmPykbtG5w9pvV7kDBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBCEIBLNLaL5S0jObK3ou2X+q7q93kmaV6Y0gW/NR/SO2n+zbvcevgEGAa+6LdR1JraRnJMvhlZ6jZSbPGEfw3EWI3O2eqRN0ZWMqIhIzLc5t7lj+F944HeLdiaelSvjZCYGkYpARxxOAve2+289Y2kALMNWtLfJpru+jPNkH1fatxbt8RvQX2NuB2ezf2Lp8ls5zdzhiau9VFlxt5j9+5SKBuNlt7DcdbTtQT/RPzdIPHGB48HxlC76hRYdJjrjk+B+CEDytZ/3Gocdwaf8ALYVVp+fISeN/irZp0YauoPGNh/lDfgq1TszJ7UFY9ItfydOImnOU2P2G5u8ThHY4rMY2kk22gOPgCT++tXD0lVF6hrPYiB73Odfya1VnRjNvHA/8rkEbRNY+J/KMOy2K+w57O1foTUbWyOsiaHPONlud/FjNssXtN2jFsO/esCwYo7i3E3yuB/7U/V+aSJ4lieWvabDCedY7eotyGWYKD9V0ek7EMmsCei8fRycLH1XdR7r7mix3VjXzFghqGt5+WLZG47g5p6DjxGRO5aFo/SFso3Yh/ZSHnD/DfvHUb9yCwIUenrGuyza72XZO8N/aLhSEAhCEAhCEAhCEAhCEAhCEAhCEAhcJaprTba72W5nv4d6X1NSXA4sxva08377/AIe9B0q9Ik3bFbLpSHoN429o+Q8ln2ueu0NGwhl5XuubA855G1znHYy+V+5L9La5S1czqWiaMLXFpkP0fNtiLG+sAbjEcssgbi1V0toZrS8m8kjxZ8j83EXBy4DIWAyCCpaW0k6XFUTnFNKI3x5Waxge8FrQdjQG99770u0hFhdhAyzLctrTYgdfBWvSOi28lE8jmtjc02P1gWjuxOSfWyFrKiw3C34SR8UFs1KrOVpA09KI8n9y12eVh3J/ojmygbjkewqkejaX52ePiwO/C639SvFK35xp60Fh1WgtpJn+HJ7rITPV2D/uF+ELj3ksHxKEEjW+G07X+3EW/gdi/qVVgbke9X3XGmxQiQbY3Bx+wea7yN/uqhtFjbrQZd6TWWrD1xR/1A+5VyheQ5gHrc05ixDrtta3XxV89KdDcRTgbLxu7b4h7/NUKhdhew+y7O/A53/N4IPKeJ8jWxxNLnlwAaNpyJ+CkOhqKRwM0T2dZFvPYUz0SGw1bXgkAk4epxu23g5ys2lq2QAm3KRnpscMWW/LePMIKw2rBiJae/eCPinOjtaamFocOfGbXa65aDvDTtZ1bupVnTtE2Ih8J+ambia0nYQQHN67Eju7M2dPM5sULgbR3AINiThdz/L3qLUbaXoT0lRyANkIH1J8xf6so2d9uxXWi1oYbc9zL7pBykZ7Ht53eclhVToynmBdE4B2Z5pPm3aFXqLSs8P0UrmjhfLvGw94UTLZbp+s6bS4cL4cQ9qJwkb5Wd5KXFXRuyDxfgeafA5r8vUWv8zDeSME+0wlju27cvIKzUHpXOwySAcJWNlHjmVZL9BoWM0fpPZ/cH7L3wu9/wAE4g9JDT6kn/1zRyfnag05Cz+LX9u9lV+CB3uIUlmvDT6tR/4ov9aC7oVKOtxOxtQO6BvvxLlJrQPXdhHF9SGfkaPegvS4PrGDLECeAzPgM1n8+uVGOlUQn7OOZ3iXOHkoU/pKphkwTS9gEbPAW/Kg0eSv4N/GcPlm7yUeWYkEvfZu+3zbe89L3LLpNf6h+UMbIhxtjd4nL+VRXVk0xBlkc7tOQ7BsHcg0Kt1jgjBDPnCNzOazvO/zWS676wVs5eHuMcABDGMBawnIZn1yMQOZsOC0bRejIxHjwOkOHEcXNjGV7X9bzVF1w0ryxwSjDFY4BG0c112m5vtvhaCd19m5RsK9VtYIaC5kYSwtDRhF35Z2A33JF+5RtI6bq6wk09OWR3GYFzbre7mg77DxKW6Apo3GSrqTeKCxw36bz0WDqyKfwNfNZzy5jPUiaS2wOzIdHdltUiv1OlpGRRwytJk5zbHI4hISAT1AjNK9YJ8czydznN7QTiFvE+KfMoxNWROJuA5oBPrOxNzPcB4pDpeDBLyRNyHNcTbpY2B177d9u4qA49HEf/UzHhE4eLh+i0Shju9vaPiqt6OqDDTyzkfSPLW/ZZdv5i7wV00Gy8gO5ufcApFx1WhvPPJwaxg7c3O/pXqY6swYYA47ZCZD2O6P8oavUDKWMOaWuF2uBBHEEWIWZaQozFI6N21ptf2h6ru8W77rUFXtbtEmVnKsF3sGYG1zNpHaNo7+KDPdM6PbUQPhd6wu08HtzB8AT9wcVjUkfI445bhxLAbW5uEkOFzsPvHatuDt9+BuNxGYI7CAe5Uz0g6t8o01UTcxlK0cAOkONsvukcEGfzVT22Y8ZgNz3g7WuBHUrhSabj5Jkz72xBrrC5a/eDwBtt6wqhC0St5F2UjR8272htwH4Fe6La4PdG4lvNdiBtmWjEAQcjna3koQaacq+WdCyJgbbEWt4GQi7nbhsv1Ip2NADTicMVg3ZiGYPY7o+eahwwuxYy83O0tuLjhluTfRDbyt4ZAeLf1VMrryw5uTpNuGldGciQWiVpIuMQw2H2ht7rpHI1fp7SGi430BbIA9opy4Ymg4SGXFivzXXMsSsOPltuqxmeUykv0ucuZXV65uXS7cHrY72yzKaQ6OhwjGypBA55DBhDrkZXtl0e9RNHB3KRYAC7GzCDaxdiGEG+Vr2Wo6J0FyreS+UmXmgnE1wGFwve19obmBxVbLW01FA+SMt818odttZuWIbjhJttCjGSQOLLzYhe7cbriwubjqAPgtfrdEchC1sHNGywyJNzmTvKr/APypU8ryz4hhIIebglzD07G5tIRex48FS5dPddPHxf0m5FKLqc3JNRgvYFwaesAm4zsvXUsXqMkxfXYG5b99+CZVBiLSIw+xN7SEHm3FrAHpDPuJXQNZBNjZhGNpvilaQAXNvd1suiMjxVp+7Z8mHW60gU7M01pmBL43XdfiSfFM6cLRz0zpAm1OEqpQnFGEZ5XS9y6bjEeFgMjsFjbJrebY3KyHWIXkY0uyzy4WIPmttbQMFMSABzAchvKxTXMYZR3+VlSZ7U70n0BpFjGuZNGC0yMe4ew4C2Icf3ZOq7TEbYjMwmzsQZcWJOwkDq29thvVXAu4OJtewdvGG+a56VY6R9oy4sLnNiAFrsBsAwZDj33vvV402+9G1srmvcLNsCG8GHa55P1RsHHCoujYn1EjWMbd73BrXG97AWF9wa0AuNuvgF5pCXAz5Mwi/wDFcOiLZ8mDvA2k7ytN1D1dFJB8qmFpXNsxrhmxm3MH1jkSOwbSiTOop2QRxU8fRjaB1m20nrJ29YKeauaOL7M9vpHhGOke/Z2kJHSxmWQuOzad9h8fiVpur2jeSZicLPda49lo2N+J6z1KQ1AtkEL1CAQhCCk62aCwEzxDmHN7R6h3uH1ePDs2VuGSx8u0cPM27TxWskKlayarlt5acXbtdGNretg3j6vhwQY5r1qUW3qKUXb0i1ozbxLRttxG0e6rsqmTDA84Hg3Y4m7XZWDX/W4O/wDR2ilqsORzB2jce/cevxvuSa0+jmGsa6ajLY5trozkx5PG3QcfaF2nzUDMLFpwuFjw+I4hMNEVAbICTwsOJuMkuqRNTPNPVxOGHc4We0cWu9YdYNutT4omOYx0BxuaSXAkBwzuzmnb8eCrlNxjnx9mpT6/j5JJDK3A7kixpOR2WA+t3LGqqS5VjGnWkFk8duORI72HMeaqjissOOS7Z3i8yuT1zK+3L4K2dWE0naHF54Af7WP84WgaU0o5ucZLCGjNpLTYNbvG5Z3o15EsRFiRIwgE2BIcLAncFcTURvLmGwwt5xMzcLbktFzhttsNuVwqZb+N8NfTDRVJVTRU80tScLnX58shJAc7IMvYnm8O9bUKRvIua2wuHE5b3A3PxWKaO0k6FsAqmWYT83sOAXLbBuHIZHedq1d2stLgPPNy0jZlmFycuEuUtejLekk/VH1Z1fdAJ2yYXgi7XjPLLm55jZsVY0pRgPce63amlBrSZHPbAWgetja6xbbNxIHMAsMyRsKUSaTD3PGKIAEgEtlubZ4ha+XbZdWHpy/6bbyW0rj6XemdMlbTzu8+9NKcrRx00pk2pEppk1plKlm19j0xiiEbRe4Avv8A9lkOvRtOBwv4q/RshijbLUztia6+FuZe+1xZrRmTkcgCVTtcdM0b2cmyMxjE12NxHLSBt8mx+q032kjYMlSST0r08KbFG55wsGJ3kOsncFxmrGxAshdjkIs6UbGje2P4u8OKmUUc9Y75NSQnCb3a3eLnnSv2Adth2rTtU9RqfRwE9SWy1FrtA6DCPYB2ke2bdQB23WkJvR/qCImtrK1uHYYonDnX2tc9p37w3dtNrZP6+pdO+w2bgNnj8d57gO1fXyVDrDZsFtgB3D93PkrZq1quGAPmGe0NP9X+nx4KUvdVNAhobK8ZbWg7zucerh48Fa0IQCEIQCEIQCEIQINO6sRz3ez5uTj6rvtDj1jzVKqaaameA9padxGw/ZdsPZ4haoudRA17S17Q5p2gi4QZnXGmrY+Sq4muG51jzTxBHOYettxxsqdpr0dYWtdTHG0DmEOaJLcA/Jr/ABb3rU9K6ltPOp3YT7L7lvc7aO+6rVRT1FMTja5l9+Ra7tObXHtuexRZtMumRaVc+BuCoa5wBAs5uCQbc7EA227rG21K2xQSfRyhp9mTmnsvs81t01RDO3BURNcPsgj8DzYdodfqVa0n6MaObOneY3H1Wm/+VJZ1uw2SRF0zGo0VK31bjiMwoEjCNoI7QrvVej3SFOTyEocBuDjG4/dfzf5kqq218OVRSYhxMZ/PHkmkwipJixzXi12kEX2XHFT6KWZ+IMBdZpuC55yNm7L5m7r919yP+KU5yfTuafquHuIB81NpZaEtPzz48VsTXxFwNtmzEN6rV5UubSMscMMcjcVsmskY0tAFtljiBJJTyppyxgk+TxlrWNJvPNmQAXXjAzFyR2AKsyGkAs2rGRDgBC9vOGQOUe3MrkauDFj5cY74sXIi+K9735LbfNR122nJpJqtJF/MbZsd8mMaGNPDEBt7yVNleeWcMTek5uEYb3zHJAht7E8y99huoLRQDZVO/wDE/wD0qI7ScA2GR3WMr+KRTLLadTjMJpE9o2kDvz8FW26aaSBHCXHg5xPkE4odHaVnyp6ORg4iLkx+OSw81dlTplVYXDXEcTzG+L7e5QK7WYNyEgHVEMTvxnId1k20d6H9ITnFVTxxDrc6Z4+62zf5latHejvRFL9PI6peNrXG4B64ot32yQirK6Oerq5Cyjhe55yJaDJJbdikOTBtzNu1XvV70QFo5fSk4jG0xteC49T5TkDus2/UVdJNaWRM5KkhZEwbAGty7Gs5o7bnsS6Glq6x2Kz3fWJs0djjYDsamhIOkqemZyNFE2NnENsSfascyfrPz6iFFodGz1b7gEi+ZJyH2nfDwCtOh9So2WdMcbvZbcN8dp8laYomtAa0BoGwAWA7lIU6E1ejpwD0n+0RkPsjd27U5QhAIQhAIQhAIQhAIQhAIQhALxzQRYi44FeoQI6/VWmkzwcmeMZt/L0fJIKvUiUfRStePZeC39QfJXtCDM5aGuhyLJLfV+cb+HnNHgoTtIuBtIxp45OY7xaQB+FayucsLXCzmhw6wD70GSytpZPpITfq5OT/APRjfeob9XNGv2xtHbCy/wDlvJWsTaApnbYI+4Yfy2UOTVCkP8Mjse/4lBljtRtFnbbuZUj8qV//ABzQB+I1MpZe+DkJ/DEI728+tbA7Uim4yD7w+IXx/wAjU3tS/ib/AKUTtmtPqjopvqF3bFVf1NTKDR+i4s20bXkf3UN/GV4KvbdSKX+8Pa4fALvHqhSD+GT2vf8AAohUI9YWR5QUsbB1vwkfdjjI/mXw7WaqebMLRwEcXOH3nuff8IV+h0DTN2QR97Q733U+OJrRZrQB1AD3IM1bo6vn6TZSD/aOLW/hcQ3wamVHqLIbctK1o9lgLvfYDwKvaECXR+q9NFmGYzxk53ls8k5AXqEAhCEAhCEAhCEAhCEH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhMVExUWGBcZFxYYGBcgGBkXGBcaGBgXGBceHyggGholGxYYITEhJSkrLi4uFx8zODMtOCgtLisBCgoKDg0OGxAQGC0lHR0tNS0tLS0uLS8tLS0tLS0tLS0tLS0tLSsxLS0tLS0tLS0tLS01LS0tLS0tLS0tLS0rLf/AABEIAMEBBQMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcEBQgDAgH/xABOEAACAQIEAwUEBwQHBQQLAAABAgMAEQQSITEFQVEGBxNhcSIygZEUI1JicqGxQsHR8CQzgpKistIlNVODsxU0c6MIFhdDRGSTwsPh8f/EABoBAQEBAQEBAQAAAAAAAAAAAAABAgMEBQb/xAAxEQEBAAECBAMGAwkAAAAAAAAAAQIDEQQSITETMkEFIlFhcYGh8PEUMzVikbHB0eH/2gAMAwEAAhEDEQA/ALxpSlApSlApSlApSlApSvHEYlUF2Pw5mhJu9qVqX4ox91QPXevwYiQ7t+lY546TSybelR1+Mke4Hk8xkC/AuRf4Xr7j7QEayRyAdbKw+JQm3xFOeL4OTf0rwwmMSRQyMGB6GvetudmxSlKIUpWn492nwmDH9InSM2uE1LkeSLdj62oNxSq1xffJhQSIoJ5PM5FB9PaJ+YrD/wDbHfbBG3nMP9Fa5am8WtSqzwXfJhibSwyJ5qyOB6+6fkDU54Jx/DYtc2HlWS24GjL+JDZh8RUssXds6UpUClKUClKUClKUClKUClKUClKUClKUClKrvvV7wm4eY4IFDzyDMSdkS+UWHNmNwPQ+VBOsdjRGOrHYfv8AStGWLnMxuTVHYrvTxmY5kTMNDdQSLaa3HWsVu87HEgALc7AINeWmmtYyxtdcM8cXQKEdRWYuBEiFWJAPTeudo+8vHrMI5hGVDZXjaNb720bcEciKvfstxJ8saSi/iDNG42KkXF/Pl8qxy7Xq6XLmxuzVcY4Y8J1OZTs37j0Na5HZTcEipl2oQtGqg2Ja/wDdB0/Ooeuova3l0plNquGVsZ2BxbBsyaSblRosnw2D+fPY9RMOGY9ZkDDn/J05HyqCMLWsdfyv5HpW+7PTe21uZRiOjNcH52vTG7Uzx5olNK+JpVRWdyFVQSzE2AAFySeQAqoe0/e3FMjxYSXwVOnjEEyFeZRNMl+RJvY7A7do8rZd5neMYC2EwbDxtpJRYiP7q8jJ1Oy+u1MySM7F3ZnZjdmYksT1JOpNexbBj/4hz/YH8a+XxWDA0lmJ6ZFrtOWerPV6YHDNI6ogLMzBVUblmNgB6k1su2PZTGYIg4iMGI6LIhzR3+yTYEN+IC/K9eXYfjkUGOw87hvCVrkkagFWW5A3tmvp9mulsZBFPCySBZIZF1B1VkIvf5a3qZZbJI5L8U+XyFZHD8fJDIskLtFIuoZSR/I8tjzFY0pXM2S+W5y33yXOW55m1q+ooGbMVF8ozHUaKCATbc2vy23rQv3u67xVxlsPiLR4kbHZZbdOj/d57joLArkbCOwZWQkMpuCDY6agg9RbSum+w3GmxeChnf3yCr+bISpNuV7X+Nc8sdmpW+pSlYUpSlApSlApSlApSlApSlApSlArn/vSR5OOZFAY+HGoBF/eQ2AH2szabancamugKqLjuHy8Xx+NJCjC4eJ9RcXaMk2HXIjgfjosm9a7GYDh+Cjy8QfPNLr4YzNnY2OYqusvtaXfS6+yBpXxw3CcLxqGDCMIsQo9pChQZlvdvBY6Wa5vGQw61CeNcQlRTOTBiJZ3gxX0hdZMOwuVhtyA0FvLXcV88J4hJiLNIYYX+kviTi2IR2cISYw22S4JsN9utTZrmnbbo1XbHh80GJyzMWIsNSCRb9kkb9Qx94MDver37P8AFV8HDa/1KrmHMk3IA6C1vz6a1f3ixmfA4LiGcuZDke4F9iVUkb5WEovb9odKm3BuDOUgKtZcQqj8LKSt7cxasZ3o6aU96rPxyCeAOnQOvy2+RqH/AEFWJNzr5mp3gcMIo0jGoRQt+tha9RjFw5ZXXoTb0Ov76mc9TSveNenCUPNvmf41veB4RYyFUWF7nqTbSsSNa2WBFmX1rE7uuXao9314to+FTBTbxGjQ/hLXI9CFt6GqFTAQGKM2cm2fQWdwwAIYm4WMOps1iTewBsWN5d+v+7Nr/XRadfe0qlxCPERHkKw/V+PPGrOsMbHKL2Hs2y2AO1hobWr1Yyd68GVvad2ubhKA5zlKsT9UGbMoFt3sd+RseemlfPE8NEmHISJiVb+sNg659hJb3l9n2SNDc+6d8rCNw9mhieSaK0k/jYvUhorHwMsWtiSFB00vz5foibwWaRsshS5jPvPGxsRzsSV25Feo017t7d097Hvej87OqGwslxqGIHxtYfz1roHuuxYm4XFGze3GrRML6qLsEuOXsZbVzjwkkYVmF/ZlUn0ykfvq5+46CVmxGIIIiZVRSdncEk265Rpf73rS33GvVUvEsC+HeTDSKBJE+Unn7AYafdYMrfAdaw8pq1e/fhASeDFqLeKpjf8AEmqH1Klh6IKq8VuXdHwkZvrXS3dnghFwzDC986eIf+aS9vgGA+Fc4IK6O7r5s3C8Meisv912UfkBWc+yxKaUpXJopSlApSlApSlApSlApSlApSlAqqO2vtHjSKfaEELEdV8Fv9DVa9Ux2l4isXH5kkkKRTxQo5FtrCxJP7O6nycm4tUrWPdVfHJWjxPiphvokcyRukB1UxMoF/MMVY8iLmvPgxebFx/0f6UsZLfRxoPCQXK38gBqbk2F71Je1vZoYQtHiFnlQyxLBiwzMsGGB9qJl1syq2i89xasfs7wL6Q5iwInVxiHBx12VPohUqUtce2egFz6Xs3Nr2bDjzAdn8McuQS4ktHHuFUyTOADufZ0qyuz4+p4fpe2t+hzMP3n86qjvWxyrJDgYXLQ4e4G1g3srkFtwgFr9WYcqtrs7/UYH0H+dq559nXDzfZYtRjiIvM/PUf5RUnqM8UUiZ99bEWNidOvwtWs2NLvWv4Ri3kL50CqrZQb7/zet7hfeX8VaHgcsrZ/FTL7ZILDUC+ljua32CN5Av2Rc/Hb8gaxZN+jrjby3dGe+sX4eo/+Yh/+6qOfFvDDM8WKUGSZI5MNl1kjRC6yknXIGJXQDfflV3d+RI4aCNSJ4rf4qpZII2Y4cCFvpZgUYmUFfo7K5LZSeoIBNxfSvTPK8d87TfSIE+uRSXPuxkexGwtdr39oa+zpprtYVspZDIMNLJi0neSFlZMtjAsTkIjWGt7k7DfnvXhg+yksjxIXijjlkmRMQzDwiYgbkHexyEA21r7lxcUimcRR4Xw4Y4wiDSVlBDSX5Mxt15a86YeZdTyvrs4P6NP+Kr67lf8AdUX45f8AOaoPs1/3Wb8Q/dV+dy3+6ovxzf8AUNavkiTzNf38qPoMB5jFLb4wzfz8KprCcNlkF442YXsCOZ6DqfSrk7+lJwMBGwxS38vqZh+p/OsXs3Nh/o+BGVb5ARlN/aCnMWH2s99OtSXbFduqoFUg2IsQbEHcEbgiuge6E/7Lh/FL/wBV6pbtfOj47EPGQyGQ2YbEgAMfiwY1d/dTFl4Xh78/EPzlc1c+xO6W0pSuTRSlKBSlKBSlKBSlKBSlKBSlKBXPffZglHFc8pKxyQKwNyL5QUyg5W1va4tt0veuhKj3bPsfh+JRLHOCGQkxyL7yE7jzU2FxzsOYBoKJ4B3nTQwmKVBKtrAXIcaW0ksbgDYMCdPe2FfXFO9WVoPBgj8GwADlg8hsN81gqHzAJ10tUh4n3OLG1vEYqdmFtfnaxrXv3TLylf5J/qrG+LrJnZ0V9xjAhTA2cO8tywBUge37LLbUKwOx1uDer/7N2ZsHGNTGik/H2qhHDu6mNHDu8j2NwtkUE+ZzE2q4Oy3CEgj0ALk6tz269LaVm3mskaxnJLa3tRXjUbNI0iHUezY7ELp8De9STFzZFJ58vWtCx5Vc76GjPVqhipzcCPKR+0x0+HWt/wBncMVW5OZjdmJ5k6fpWGATYfyOZrfYKOy+v6cqzhOrerdsUG79FJ4UxHKWI/mR++qHjfTLIFYyKrBQQdG/aFjubG67i506dS9p+CJjcLLhZNFlW1+asNVYDyYA/CuZO1HY/G4WQjFht8qyks0b7kZZDprqcpsd9K9GNsvR48sZZ1YkkMGVF8RmIZvqiTZSeYXqbCvLEh5BIIkHsIzMLiwQABmBvqdb2F7C+/LDPDXOuZD/AGhXth4sRGjojKFkFmHsHQgg2JuVuCQbWuNK1bdtpEmM33tZvAGthJTtdtPkK6C7m47cKh82lP8A5rD91c/9nuEzYiSHBx2u7WGulzqzHyAW/otdT8C4WuFw8WHTVYkC35kjdj5k3PxpldsdlnfdEe+zEKvDGU2LSSxKl/tBvENvPKjfOqGhxzKMquyjmASN96snvv42JMTHhUNxApZ//EkAsD5hLH/mVXOHdASXjEnssFBJADEWDm3vZdSBte1+huM6F7vBXvoNuZrqXsrgjDg8NEdCkUYb8WUZvzvXPHYng/0rGww2upYF/wAC+09/UC3qRXTlTOkKUpXNopSlApSlApSlApSlApSlApSlApXyXA3Ir88Veo+dB+Twq6lWFwaifFOHyQm4uycm6eR6VLwa/SKzcZW8M7igKYg1IeEcQFrH5VmYngsL65cp+7p+W1Yv/q8B7shHwrHLZ2dfExym1eGOxbM2osBsKx0udhW2Xhbc5L+q/wD7rIh4eo3Jby2HyH76ctq+JjJ0YvD8HzP8+QrbUArymxSJ77qv4mA/WtybOOWVzr1rG4jgY542hmQSRuLMp2I/cfPlXl/2zhv+PF/9Rf41kwYlH9x1f8JB/SrvC6eUm9lc6d4HYiTh0mYAyYZj7EvNSdo5OjdDs3rcVEtK63xeFSVGjkRXRgQysAVIPIg71VXabuZViXwEojvr4MuYp6LILsB6hvWusz+LlYrXsnxf6JiocRa/htcjqpBVgPPKxt52q9O1XeDhsNhVmidZpJVvCgO99MzjdVB3vrcEb1TmM7uOKRHXClx1jeNh8s2b8qxD2Tx40OCxF/KJv1ArVko1WJxLSO0kjFndizMdyzG5PzNeYqT8P7veJSmwwroPtSFUA9bnN8gas7sV3XxYVlmxLLPMtiqgHwkYcwDq7DkSB6A60uUibP3uk7JHCwnEzLlmmFlUjVItwD0ZjYkeS871YVfEsqqLswUdSQB+da+TtFg197FYcessf8a5W7ttnSsHC8Yw8htHPC56LIhPyBrOqBSlKBSlKBSlKBSlKBSlarG8dhS4DoW/Eth8SQKDNxOKC6bnp/GsB52bc/DlWpfjcO5kX+/H/qonG4SbCRCTsPEjuT0HtanyoNstgLnYVgScQudDlHkt2+Z0HpY1s+D4hJBmU3toRzB53/nnXjxvAKFMgstt+hubfPWorBix5B0lN/vKP1W1vzra4TiVyFcWJ2N7g+h5/rUc8OvSJreyfdP5HkR0NBMRStXwrFnVG1I59Qdm+P63raVUK1HaLtDFhEzSG7H3EHvMf3Dqa8eP9qIsOrAfWyjaJd7/AH22QeuvQGqj4pPiMRK00wuzfeSwHJVGbQCuepnt27vo8DwWOrlzat2xnz2t/PxbPi/bHFYgkZzEn2IyR823P6eVa3Dw5jc6nmT/ABrHETAXIAt1dP8AVUg7BtHJi0jbdTmym2pAJXUaEXAPwryWZZXq/T456GjpZZaW22M36I/iuKhSVjsLaFiLm/Ow0t8flWPHxVgcyyuG5HKunysR86tvtx2PhxUbSqFjnUEh9g1hfLJ1HnuPyqj11AI2Nby0+V5uF479oxtnf1ix+zneHLGQmJ+tjOniD3h69fQ/OrPweLSVBJGwdW2I/nQ+Vc2RuR6cx1FTDsR2kfCyhbloX3Xy5kfeH5j8tYalnS9nl4z2bhq43PSm2Xw9L/38/NdVK+UYEAjUEXB8jWLxLikMC5pnCA7Ddj+FRq3wFep+aemPxscMbSyuI40F2ZtgP55VSvazvaxExMeCH0eLbxCAZWHXXSMeWp8xtXh3gcXxvEZMqxmLDIbpGWW7H/iSa79By9aii9np+ij+2tBh4id5mzzO8rfadmY/NiTXxPMI7C3tEXHS23xrJnwTxatlPowOvQ2roiXspg58FHhXjWSJUAjYe8Lj+sR9wxve/O+t6iuZTiydyfgFtUo7M94WNwhGWXxoxvFJci33dbr/AGT8DWj7W8DOCxcuFLiTwyLMOasoZbjk1mF/OtRQdTdju2GH4hHmiOV1HtxE+0vn95fvD8jpUhrkrg3FZcNKs8LlHQ3uP3jmDsRzFdNdju0K47CpOBlbVZF+y43A8jcEeRFVG7pSlApSlApSlBXXfhx6TD4JYoWyPiHyFgbERgXex5X9kE9CapOLgGLkdY43ZyV1tnNmBIZFVQWe2huotZhe1Wr3/QGT6DENS8kigdScgAvyuTa/K9fuN4sOFoMHwyOKfGeA007kjw1jUXvvc21CIG0DXNybkKpxHY7iSIZJI5I1W9yzeyLDUM6khD+K3rWk4xhfDy/WZ2sMym+dHtci3S9wD5X2Iq1+Ed4ePjzuWw2Mw4gTEYnwQkbxeMbMqm9jKpNyGBvzsa0ve5wzCNHHjcCV8J7XUAgxs4zBMttFNyR9lldedlCe93uJIwMOJVzmLBJAdQwFrE+djv61Y3FRePyuL+l6pHsHxUphIYiAVys632zaAm21wBf59auLsxi2nwqtJrfML9QCQDQaVvZJWxI5aHbpX4Zfut/drZPFlYr0Nfqior54UWJ2IGwvz1/dX53h8abB8PxE8ZtIFCoejOQgb4Xv8KzcL7w9ajHfcf8AZUnK8kX+cVUUImBxLor+MSXOZsznRXAIdnublmLC3vXU6HW2OeGYgsVLsANnOfKfMi2YD1FSDAR5RDFEoeaRgkaXAux0zOTsddfgBoKYRcU7xJG+HknkedXw9wHj8C5JZr8wrWPkN+WObK9o9s0dHCTxcrvfSen1RjiWAMcQZ5QXvrGTe6k+y0bahxYXJG1x0NSTsgrDD/SI3KSRnQjyP/8AKxOI+HPhfEAsDrroVcaFx1GhB5Hfda+ezWNMeGUWurykNfpppUyvNi7cHPB4rGb7y/jNnSD4x8TwtpV9+TDMbD7ZjN7fGqKmVRqpOt9LbaCx+Nz8qtLub4rJNDNG2qRMoTTQZgSUHkLA2+9US7c8HGGxjqosj/WIOgYm6/BgfhauerLtK9nsvUw8XPTnr1n0+CMCf2SttCQfd106Hcb/AB+FZHDpDm2NhqTbl5fG1eirWRDpqOWvyrz2vv46fXdfHCYSkESN7yxoD6hQDXNPaXiOJ4hjMTOJSAGZIkBOy38OJVGozAMc1rXzV04sl0zdVv8AMXrkyIhRK1veY5m12BP1d+hvc9dB1r6Efg8rblbWJi8NMpUGXMT72RmYJrzPuk/hJ2r0j4U+VnfEKFy+y2YkZyR7Mg3T2bnUa7C9Z82BkVWeSSLDq2G+kRKzazIWAWNQD7x1NjroNOn22Cnhm8KSNfFVAzLcMrRyKGyk7EFeW99RsDRlrux2HWWcxvsddDzva/510H3S4xjBLhmYt9HcBCdwjXIX0BB+dc99nn8PEyGP9lHKg6kWAIU9SNj6VY/dfxuQY+FI/dmuJFHMBGbMfMEb+vWqI33kQkcTxviEq2csum4yIUHoUsAetqjEExVgwAJHJlBB5EFSLEWNXP38dnwUix6D2lIil80a5jJ9GuP7flVOAVlXlExBFr3q/e42Bhg5XOzzHL09lFBI+Nx/Zqi1FX93Kz5uG5f+HNKvzIk/VzQT2lKVUKUpQKUpQRDtThEk4jw3PbLGcU+trXEaqL383Hyqie009yxnwwhGInxDxYlTZjEG8IRZB/7tcoFjyOg5m8e2XE1w/EeFs5srviIyemeNQvzfKPjVG9qeCDxZooRiJZklnmCEHw1wTDxVdAdQbsbjmb6XoNDFEuGIeW0hNisatoyXBzsw2U20+B9LNjgkk4NxbD4mIQSRSCWOMkEohCzrGr/tAAN/eO21VZw/hxkbMySGGPw2ndBqkLMFLC/OxNvSrJixMeG4FxBhI7ti5bQ+Lm8RoCyxxsxO5yK59ANqLWx7DYVW4VC5W7LLYEbgEKCPTy8quzDRhUVVAAAFgNqpzu9W/CY/KS/5LVyRe6PQfpRGq4iv1h8wP4furyAr14o1nJN9ANhc/Ac6j/CsIonmdWzNdQQTYjQE36nXaoJFBuPUVHe+OPNw4qdjNAD6GQXqRxbr61Gu+eXLw0v9maE/JwaNY7c037KT4jJkE8r4USRF4olnDWaGQDxSY7a5mB30Gg11qP8A0JUPitJeP9gq3tyHmttxa9m23863nEcIkrSoDM8srRfRok/q3lvkkzg6XyWs3majkHC5pJPBjidpc0gyAa3QXcfCxv6VMPLHXid/Fz3+N/ulMYdypfD/AEeGbDKYhmzBgpyM4+yWLbWGlq8ey0IbAy5hezEjyPs6184eSBC0kEs0kSQKq+Le4e2eVVGwUN+p33r27Ij+gyj7x/Va55ev2fQ4Pz6Mv839Nv1X93ZwqvDcOVUAspZiB7zFiCT1OgHwqPd78QzYZudpR8BkI/U1Ju7r/duG/Af8zVG+98/92/53/wCOrn+7ThP4h98v8q9UVkwrv6GpzhOBYfxUUWI8M+wwsWvYZj661DCgBcDUAkA9dbCvPqadx2fd4Lj8eJuUmO3L+K7OGtfDRnrEn+QVzFwyGQyxqmH+kgO8rQkgK6pdmuTpsPPa2u1dPcPW2HjHSJR/gFctYVULpJK8iRLKVlaI2kCG4YLz1U/ImvZOz8fqee/VrZsOuIPiRERj9pGbSJd7rc6x67dSBz0z4JWbDyfR4GKQyRGXE5/aysCiKU0Ni2t+WUaCtTxDh7xalHVHTxIiw1aEtZH001ArYx8LMaeC/jx4tpVLQHSNsP4YdHbq+cm1zoPOqy9uzUVsfYjddQfO1W53MYKNZ8YQgumQISNVVixYKdwDYfKqi7LNfHnyBHytf871c3c8Prsb/wAr8/Eqok/efAH4ViwwvaPOPWNg4/NRXNSiumO8k/7Lxn/gt+elc6QYZGjuTY5gL203Gl+tZGMgq8O4s/0ScdMQf+mlU3j4QrgLYCwOn8+VXN3Gp/Q5m64hvyRKCx6UpVClKUClKUFRf+kHKUTBON1kl232TY8jXlh5sPxuJEnlbA8RjjaIuCVaRToVK6B1IuWjuGUnobmWd7PZiTHYMeAA00DiVEOzgaNH8QfiQBzrnTEYHFh2ZopAxPtXS2uxutrX+FBbWG7vbB5uIcQIghQYdo8pgWWOE3VXe+qE8wCTyNQrvZ7XrjWjiw6FMJB7MVgQpIFiSv7Jy2AU6gX2zWEQeDE7kSmwsL5jYeV9vhXsGmeAYRIGuXDEgMSxGYL7OwPtm7DcBb7UFvdgDbhUItvIR+S6/P8AWrljGg9BVWd3/BJWihiYZEhsWvzY2JA9BVq1Rp+LygSKDzXflubD13rV4HhUcTPICxLG5zEWHpp+tbPGWctcXB0+ArC/7PTfU/dJ9kedZVm8Nkzvce6NAep3J9NBUc77R/smU9HiP/mCpdw6K1YfbLgf03BT4W+UyJ7LHYOpDIT5ZgL+V6sRzjgMZnRQ+aFlKtFJcqV+yynkL6A7EDqK90w04EafSmVYGkdXAs/118/1m5vdtb/tGtFxTh+LjlySxNFJEAmULawW9vxDmG1B5aWrBbDT3vlfe+xtf02rHJfSvZOIxsni4b2eu9nT5tpxvFIIfBiW6KPaIvYG4sSfs3O53Nq2PZRrYGQ/eP6itDhcTNFHMngktKuUuc1wCRmBGze6LX2N+tSDsrwyedY8JGpBY3N9NT/P5GpnJMdnp4LPLV4qal7Yy/STa7Og+71bcOw34P1YmtF3v5RBAT73ikD8JQ5r/EJUz4RgRBBFCNRGirfrYWvVb95nEBJiRENRCtj+N7M3+EJ+dTUu2BwGN1eN5se29v2RdOKSb5zfLlvzy+v76+OH/WyLGnUXPmTYD5n8qxhg4rMTmB0yqPdJJ1LeQHIbk+VSju84bnxKG3sp7Z/s7f4iK8vXKyP0eUw4fTzzxxk2635rdyWWw6WrkdCSzjISA7AtbTUkhfxaNYcxfpXXdcyd5PZXEYPEyoEvh5pTLFIBuW18MtyZdRbmNdeXvfh2ognmyyiOY5WhMJD2Nob3yJe+X0HU1izSsxzO7yyEBSzEliAAqqCdzbQL5VgTYadrXVjbbTX58/jX3gzNHIkjRNIE2U5h6ZWGqkWBuOlBm9if++EgWFm0O41Gh86uzubuZca3K8Q+XiVSfDMTIJpsQUs0hY7WAzNmNq6D7pOCPh8H4koKvOQ9juEt7F+hNybeYqiQdsEjOAxYl/q/AlzdbZDt51y1HISoF+d7eddAd8/FxDgDCDZ8QwQdcikNIfSwC/26oSGGNnXxCypcZmUAsFvrlBIBNtr6Vkfjza9WNdC90GD8PhkRIsZGkf8AxFQfiEBrn7C4bNIFjUkswCg6kkmygnmdRXVHBcAIMPFANo0VL9coAJ+J1oM2lKVQpSlApSlArCx/DY5dWVS3Jra/PpWbSgicvDYgSrJY+p/jX4uAiGwP95v41JsXhFkFm35EbitPPwyRdvaHlv8AKgzOEZVGVQAKycbiLDKNz+QrTRl1OqsPga9iwbXUGor9vX1GlzX7Dh2PI/Kw/Otlh8OF9aD0hSwtX3SlVGs49wKDFxmOZA32W0zIeqnkapLtH2dbBy+HKtwdUcXyuvUdD1HL5E9AVhcX4XFiYzFMgdT8weRU7g+YrnnhzPocDx+XD3a9cb6f6c8rGvK/zNSjsFjo4MSrtoDcE9AQRf4X+V6z+Od2eIjJbDMJk5KSFkHl9lvW49KjMnCMVEfbw8y255Gt8wLV5rjljd36ScRw3EadxmU2ym3zXR2n7Qx4SHOSGdh9Wl/ePX8I3J/jVLzzl2LsbsxLMepJuT86/ZpGktnD5gABcMdBsLHYeQrJwHAcTMbRwyN55SF/vNYfnTPK51z4PhdLg8bblN73vZhoLmwq3+wvBDh4Mzi0kliRzCj3R663Pr5Vg9lOxCwkSz5XkGqqNVU9Sf2m/Iee9TOu2lpbda+X7U9o46s8LSvT1vx+X0K854VdSrqGU6FWAII8wd69KV3fDUN3m9g3wROKwudsKTdlBJMBP6xef7Ox01qvlxTfab5muuXUEEEAg6EHYg8iKqbth3OK5MvD3WInUwPfw7/cYAlPw2I6ZRQVD47N7zE+p0+VdO8J7SYeXBrjC6pEEu5J9wge0p8wdLc9LbiuduJdi+I4cnxMHNYftIviD1vHm/OsFvGVDG6zKpIJUq4GYaAlToSBUVue3fadsfimm1EajJCp5Je9yPtMdT8ByqPVlYThE8pAihmkvtlic/oLVYPZDumnkYSY36iPfwwQZW8ja4QedyfIb0Dub7LGWb6ZIv1cJ9i+zS8rdQm/rboau+vDBYRIo1iiUIiCyqNgBXvVQpSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlApSlB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEBMSEhEVFhUVGBAVFxUYFhUQEBUVFRUWGBUVGBYYHiggGBolGxUXITEiJSkrLi4uFyAzODMsNygtLisBCgoKDQ0ODg0NDzcZHxkrKy0rNys3LSsrKysrKystKysrKysrKysrKysrLS0rKysrKysrKysrKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcEBQgDAgH/xABKEAACAgACBgcDCAYFDQEAAAABAgADBBEFEiExQVEGBxNhcYGRIqGxFCMyQlKSwdEzcoKisvBTYnODsxckJTQ1Q0RjhLTD4fEV/8QAFQEBAQAAAAAAAAAAAAAAAAAAAAH/xAAVEQEBAAAAAAAAAAAAAAAAAAAAAf/aAAwDAQACEQMRAD8AvGIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAlfdOetGjBMaaQLrxmGGfzVZ5MRvP9UEeI3TB64On5wqfJMK/+cWDN3BzNNZ2bOVjbcuQBPKUNSuZ/kmBNNIdYmkLySb3QfZrY1Adw1MifMmYqdIsWd+LxQ8MRafcW/GaelJkBYGxbTeP3pj8Sf7+38W2TGfpfpFTkcdiQf7Z/znnUSDM19HdpWXKHVBClgDqhiCQM+BOR2d0Dzq6c6RG7HX+b6/8AFnPdOsPSY/46zzWo/FJH8bgGr2715/nMYGBPsD1s6Sry1nrt3Z9pWo2eNWrJr0e646bCFxdLUk7NdCbq/EjIMvlrSjlf+d09Q/d+MDrXA4yu5BZU6ujbmUhlPpx7p7zmPot0pxGEs1qbCAfpKfbrf9dePjvHAy8uiHTmjGgIfm78ttZOxu+tvrDu2EcuMCVREQEREBERAREQEREBERAREQEREBKW67unNqXLo3C2GvYrYixTk+TDMVAjao1PaOW05gbswbpnI3SrSHyjSGNxGeYe6xVP9RWIX91UHnA1m87BkOA5DgJl4euYtQmzw4ge9az2Uz8VZ9BYGZovAPdalVa5u5Cgd5+A750Bgei1KYA4IjNWUh2+sznfZ3EEAjlkOUhHU1oTM2Yth9H5uvxIzdvQgeZlqwOatL4Zq7bMO2xq2ZLDu3H6viMjnyI5iV/jbGWxlz3Ejn8ZeXW7o8V41bQNlyAnvev2Sfu6kpfpLTq3k/aAP5wNb8obn7hPWi4k7T7hMaS/T/RerDYOi5L+0t7QVYhRkaq3sqF1aIQNpC5hjmRns2ZGVGNo6hW35+RyklwOi12EPYCMiCHOYI3Ecp56GwWEpw2HtxPyhnxItdeyatUqrSw1gkMCXclSctgy9+5twfY2mvWDrkjI42B63UMjgcM1I2cDnIq5+huON2CpdmLOAa2J2sWrYoWPedXW85upB+q/FZpfVn9FksHg66uXrUT+1JxAREQEREBERAREQEREBERAREQIP1s6VvowiDDXGqyyzLWABOqEYkbRszOrtnMxUoNUjcWz47d3wAnQfXRd/qq92Ib/AAwPxlDE5sT3mB41Wgb5sKcSvMT8pWZldK/ZHoIBMWn2hPQY2sfWHxnrXh0+wvoJl01gbgB5AQL76vey/wDzsOKmDDV9rgRYfacEbwQT6ZSRyK9WeH1NHVHi7WufvFR7lElUCvuuTCZ4ai3LalhTwFiEn31r6yg+ltWxG5EidMdY2HD6MxJP1FFvMgVsHb90Gc69IED4ckbdzDwgQ2Sjo785o3SVO8oMJilHLsrTXYw/Zv8AdIvJD0Lxa1239prCq3DYuixwrOE7StuzJCg/XVZUffRvCvddXTWM3sZUXxY5ZnuG89wk/wBLYxHxJWrbVSteHrPFkpUIGz45kE+BEinV3iaabL3vsemzsXrps7Gy8V2Wey7lV2hlTPLPL6Rm+GDorRTTiWu2gZHD2YcAZE5hmJB4bO+RU36u8XqY1Vz2WpYmXNhlYPcj+stSUhoDFdniKLPs2VEnkpYK5+6zS74CIiAiIgIiICIiAiIgIiICIiBA+t7RCPgnxRYq2HUnmrKzKCpHA55EH+Rzkp27/wCTOluuJ8tCYzwpH3r6x+M5mUbR4L/CIGwombVMTDCbGqB61zNweHd2CIjMx2BVBZie4DfMZJKOr/8A2jhv1z/A0C5ujeENWDw9bDJlrrDDk2qCw9c5soiBj6RwotpsqO6xHQ+DKQfjOXq6ycOUYbQHUjkVJ2fCdUzm/T2E7LSGOp5X2OByW06yj0ygVewyOXKSboXj7qRc1VlNag4dnNutqkK5yGxW2HMqe5u+aDSFera45EzN6PWV61tdz6ldlTKW35FSrrkOJzTIeMokb6TsfEDVbD3PiHJYVGwIHKpXtBAyBAJ47zyE3lKEVaqWVWCvY2oXLJ7W/wBr6S7l1hIhgBVWVxWFaw9g9ZsrtChtVjkGBXZkT7J5ZiTHRGjVqezVsUlqrNWjPLEfOLsRl3ZqDnsJJy3SDMw+1SOYI9RL00Ri+1w9Nv8ASV1v95QT8ZQ+AbYJcHV/iNbAoOKNah7gHJUfdZYEjiIgIiICIiAiIgIiICIiAiIgQrrmH+g8Z/0//cVTmivh4J/CJ0/1sV62hcaOVYb7rq34TmCncp7h7tn4QNphpn1zAw8zqoGSkkfQd8tIYY/8xR67PxkbSbfo5dq4rDt9m6g+limB0XERASiutPC9nph2A/T0VWHxQ9n8Fl6ysOubCe1hrgOFtZPH6rKM/vQKB6R15XnvAMwcEENiC0sEJAYr9IDiR4Tc9LK/bRuYy/n0mglRJ8Do1sOmJexq+zel662Do4tdmU16oBz+rnt3SQ4Gs33jE12IFZksfWdUelhlrBgTmRmDkRvE0+Nx+jrKsEqUrXYuHxFWIbVsAForUUW+x9NjYrMTkdlmR+iDNvhMRowqAFsB+aPsawbW1CrrrOu1cwGzyzzPjlFbdbla12X6JdyvgWJEsrqvv9nEV8mrs++up/4ffKtpdO0bs89TP2c9hy5SfdWt+WLZeD1P6o6avuZoFmxEQEREBERAREQEREBERAREQI/1gUa+iscvH5PiCPFa2I+E5Uw42J4H+Jp2HpDD9pTZWdzo6feUj8ZyjXoKxRh0ZlR2Rm1WzBUaxyB7yNvnAYdZm1zwuw7U2GuwqTkrAqc1Ktnt294I8p6o45wMlJkUOQQRwyI8RMVGE2mh8CLmILldUA7ACTn47oHRmGuDorjcyqw8CM56TT9FMQrYSpQf0arWeJ9gAAnxGRm4gJCutvDa2jw/9HbW3k2snxcSazRdOsPr6OxS8qy/nWQ496wOZOlaZ1qeR/n4yLSZ9Iq9ag7OIkO1DyPoZYPSioHjltHpkST7puNH1ZHfw79//wBmkFbfZb0M2OBV9mat6GBNNFvuk46FX6uOw54FmU/t1uB+8VleaNuAyz2eslGh9Iot1JDbVtobLbmdWxSR7pBfkREBERAREQEREBERAREQEREDUdKtI9hhbHByOWqDyJ3nyAJ8pyxpbSLPazk5u5JBO5UByUCdH9aVTHR7FeBGfcCrKD6kDznMWJHzh8h6AQPZKmfaWJO6SDong6Ctq4lRrqwyLEjNGUFdmfn5zT4KZWKwIts7R2YtkgO3gqhV4cgB5QM7TmDpF+VJABRTkp2byD8JqMUl1XzlVjqRyJ944za9iusrBFXVRU9kaoIG9iOLHeTMhawdhgWV1JadfEKwffkQ3AEqRkfeZa0rvqa0IlOFe1TmbHYd4yO0fCWJATVdKjlgcV/YX/4bTayNdY+L7PRmJPFlWsf3jKp9xJ8oHPGlWGwADac/T/3MIbp+4uzNz6T5QZb4H1X7p66g4AegnzlnPVD6wPRFGXCSToBo43aQw6EbAwsb9Wv2zn3HIDzkbQZHMy2upXRP6fFsN+VKeAyew+H0B5GBaUREBERAREQEREBERAREQEREDzxNC2IyOoZWBVgdxB3iUN1o9XAwdL4umwtVroChHtprnVB1hsYaxUbhvEv2a3pJolcXhL8M2wW1umf2WI9lvJsj5QOT8G0kmhcJVaxW7E/JxlmHNbXAn7OSnMePdIy1LV2NW41XRmRl5MpKsPIgzZ4V4G905obDJXrYbSRusBHzfye2kMO53YgZb8stsxaAchnv2Z8s+MwBfcSezwtrgEjNUdgcjl9VTPbR+JdiQ9ZQjPfmNxyIII2GBbHVFpTJ7cMx2P8AOJ+soAceJGqf2TLPnPWg8c1F9dy70YNluzHFfMZjznQGExK2VrYhzVwGB7iMxA9ZWPXppTUw9FAO13awj+rWuQ97j7ss6c59bmmflGlLFU5pQFpHLNMzZ++xH7MCHDfnPULnPlBxn2g9IH0h4Cei7PGfI5Cei++B7Vrx3ngN+3850n0U0V8lwdFH1lUF+929p/3iZSvVpoQ4jH1awzSr55+XsEag831dnIGdAQEREBERAREQEREBERAREQEREBERAoDry6OdhjVxiL83idjcheg2/eQA+KsZAcLbOo+mHR5Mfg7cM+zWGaN9ixdqP67xxBI4zlzHYKzD3PTcpWyslWU8COXMHeDxBEDYWYsKms2ZAyGQ27/hPOvTQ+rU58vynhh7pki64t7HZ5cM9bPLvgb/AAbayhsiM9uR2EeMtDq005sOEc82qJ9WT8R5yqtE13k52NWV5KCD6yQYXNSGUkEEEEHIgjaDnAtjptp9cDgrcQctYDVrH2rW2IO/me5TOXwxJLEksxJJO8k7ST4mSzrG6ZPjmqrOQSkHPLc9p2NZ6bAOG3nIcLMjAyE2b57aucxe0ntTaDsMDITbsE9qq8jz5z4pIP5SxOrbogcTYMRauVFZzAP+9sB2L3qDv8MueQTjqw6PHC4TXcZW35O2e9Uy+bT0JPixHCTGIgIiICIiAiIgIiICIiAiIgIiICIiAkI6x+gKaQTtK8kxKDJW3LYv2H/A8JN4gck6S0XdhrGqurZHXeCPf3jv4xhrcp1LprQWHxSamIqV8s8judf1WG0SCY/qeoY504hkHJ60t9CCvvzgVpo7Ggb58ac0/mprq2A/Sbie4fnLD/yN57Dj9nIUAD/En2vUrT9bGWHwRF+JMCjWzzjVl/09TOBH0rcQ37Va/BJmUdUmjV3pa3jaw/gygc6gT7orZmCIrMx3KoLOfBRtPlOmML1c6Lr3YJD+uz2+52M3+j9F0UDKiiqocq0WsfugQKY6D9VeItZbcdnTUMj2WeWIs7my/Rr+93Lvl24bDrWioihUUBVUDJQBuAE9YgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMVFRUWGRoXFxgYGBcaGBsXGBgWFxgXGB8YHyggGB8lHRcYITEhJSkrLi4uGx8zODMtNygtMCsBCgoKDg0OGhAQGi0lHyUvLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAS0ApwMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAABQMEBgcCAQj/xABIEAACAQIDBAcCCwUGBgMBAAABAgMAEQQSIQUxQVEGEyJhcYGRMqEHFCNCUmJykrHB8IKissLRJDNDU+HxFmNzk9LiFYOzNP/EABgBAAMBAQAAAAAAAAAAAAAAAAACAwQB/8QAJBEAAgICAgICAgMAAAAAAAAAAAECEQMhEjEyQRNRYXEEIvD/2gAMAwEAAhEDEQA/AO40UUUAFFFFABVHbeNMMEkqgEqtwDuvuF7d5q9SPpo39kcfSKD99T+Arj6GiraRncD8IDk5XgS/Fg5Ubid2ViN3M1S2tt7ESk9to14KhK2HeRqf1oKT7MhJYkEL7R3A3Gika7tCaYSx6VJyZrWOKfQubES/5sn32/rUZxEv+ZJ99v61ZaOoylKPSIOvk/zH+839a8nEyjUSSDwdh+dWDHUciUBSLWy+m2Jw7WdjMnFXPa/ZfffxuPxp7jen8tyscCKw1uzlx6KF/GsDjBrTOaMiTUAXXcu7gRa/cabkxHji30dlwGJEsUcg3OiuPBgD+dT0l6GS5sFB3Ll+4Sn8tOqsjG1TCiiig4FFFFABRRRQAUUUUAFFFFABWc6dN8go5uPQK3+laOsp08bsxj7R/Af1pZdFMXkjH7KRCRmF2sWTkDm1PpcedMsQtV9hNZcpU6qpzfNBBe48Tm9xq7iVqJsQsdf1+vKoytWZFqPLQdICtRSCrRWoXFACLGrY1ehC9jIbjKAePayjN771X2itT4aS6x9nLbs/a1Pa7+Xl3UHDpPwev/Ywv0ZJB6uX/mrS1kfg4f5KdeUxPkY4/wAwa11Xj0YsnkwooorogUUUUAFFFFABRRRQAUUUUAFYzp6+oHJPxJ/pWzrDdNjeRu4KPz/Okn0Vw+RS2PmClcvZ7JDc2Ci48sw9amxQr3hMwGVgAt2KEcR2Q1+ViB614xJqTNaKLio7VM1RtQdIWFQtUx76hc0AKdoCvWGduqS4ICmynmM7En1Yjyr7jxUeHZjFYjsqSFPMkhiPHdQcZvfg6ft4lf8ApN69YD/CK21c/wDg/k/tMg+lEG+6w/8AOugVaHRjy+bCiiimJhRRRQAUUUUAFFFFABRRRQAVhekUgOIkBF7Ff4FrxtjpTPNM8GEYRxocrTWDMSPa6sNdVUai5DX1tYWJRbL2mHVmdizZ3BZiC3ZYqMx4kAAX7qnN+jThg07Y5imNrE6C9tN17E+O73V4kaoY8anOvr4tamaDyajYV7OJXmK8nEpz/W+gCFxULLVhp051G06c/wBfq9AC/Ew3qnEHAyG2TMW772y+lvxpwZk51G0qd1ADToBL/bLf8lx+/EfyrpVcP2ttN4CjYeTq5GZY8wtezMtwL7iSB61reg/TeWSUYbGFS7aRyAZczD5jgaXOtiAAd1r2vSDXRmzQbdnQ6KKKoZwooooAKKKKACiiigArOdM9qtHEIYzaWa6gjeqfPfuOth3m/A1oJZAoLMbAAkk7gBqSaweDJxM74hgbHRAeCD2R+JPexpZOkUxQ5MUbRkXBwxoo7chsoG/Ktr27ySotxua9v8Gk0aF0xYUZc7oYy3yli0gDBxpmvbTTvqtsSP49tY4hyBhsNfISQFPVWynXT22Ml+QFPekfwjwWeDBo2LlIKkoQsK3Fu1I2h36WuDa1xSJKrZacpcqic4g64lR1g7RA3HTMbedQHaEvBgT3AmmWC6L4iRQZ3sp+avYS3iwzN4ZT403h6PwINde4KLesma3kq1JJ+2XtejMpipzbtKPH/epTHifpL+9/StQYolFglx9Z5D7gwX3VVkSL/Ki/7aH8QaY4ZyQT8XT3j8aqPiJh88Hw1/OtLLDEf8KLyRR/CBVPEYKJvmkfZdvwYsPdXAFODmkd1TrFBOmt9NL61a2RDLPJHH1gXrHVL2JtmNr2uL+tV8TsYH2WB7nFven/AI1VweJxGDljlAuI3V8rm6HKb2zrqt++1cp/YNnQ9q/BXK0MhOK6yRUZolWMp8stmS7F20uLWtx7qzmKHXQxYpLqXVSbXBWRdDu9kgqQPs3rovR34SsJiMqTH4tKbWWQjq2OnsSeydTYXyk8BSjE7E6nEYmG3yUjfGYTwHWn5VRw0k7XcrVaSVaIQlK6kazoVt/43hgzW61OxKN3aA9oDkwsfUcK0Fci2BijgMYHbSKTsS8gpPZf9km/gWrrtNF2iWSPFhRRRTEwooooAKKK+OwAJJsBqSeVAGY6b47sph1Pak1fujB3ftHTwDCle0iYcKVQ5XktGp5F73byUM3iBUOClOJxDzncT2b8EGiju01PeTTbFlWsWAIXVeZNiLg71GpGmp1qMnbNkI8YmVbYHWxrD/d4dOG4sw+ceR7hrrraruGwcMChYkAtxIF/EDcPx76tYvF+70A7qy+1tvBdF1JOUHU3b6KAaufClG/Y3xeMAuWaw4kn8zWfx3SGJBvJ79w9WtWf262JGVpQYwwJBfVhYXCkKCIy24C3HUgAkJUwruCchJJFnYnQWNx2vavdd263fpRY2SlmS6HuK6XfRC/vN7wAPfVROkcz5siE5VZ2sq6IgzMxu24AXpedmMQAzKLX9lRfU31NgW872oWNlLESvmZDG24kxsnVlDmvpk7I5AC1rCm+NCfNIuYnb80bFJEKsLEhlF7ModTo3FWB86+J0nHzlHqV/iFvfSvGSs7s7SsXYZGOgJAQR5TltpkAW3Eb6osCARpY2voL6XtYkXG86Ai+l72Fj40HzSNdDtqJt5K+O71GlXBJxB38RWBZxYWBDa3N/a5acLe+mWzuu1MRDAEjskAuVUO4RHs0hUEXyrcXFr3BpXjZSOZPsf4jAIwNgFvvAHZPiulj3rY+NM+h+1jg5Oplu2HkuMu/IbWzRn5620K2DAHcbXpDgdrq+jdlt3dflrqp7jTFrEEEAg7wd3+niNRUy3Z0LEwLiI73DMNCRYhuTC3BhZvOtR0J2gZIOqc3khshvvKf4begK34lSa5BsnbMmFe7MzwkgEnVkO4ZuY7/AM9K6DsPaCrOkyEZH7D23Wa1m8msb8r00XTJ5Y3E6BRRRVjGFFFFABWb6dY/JAIlPamOT9gaufC1l/brSVz3bUnxrHMt/k4RlJ4aE5h4lrqe5RzFLJ0h8cbkT7LQJGCd3AfS7z3frwgxuM3knxNe8Zib9w3AchyrIbf2tawXUn2Ad2m+RvqjgPnHzKySs1tpK2Rbe2wfZUXJFwuu7fnktqF4hd57t4UbKxMiydYt2ezI7NYKEIFgthdNb6Lz7ya8QQFmJDsb6u50Ysw7Q795Hhw3CmKqFAAFgOH63mrxjRknNyLm0cCHijxGbOblZFIAVJOaKNACLC5u1goLHgolNN9kYxVcxyf3UoyP3X9lu6x48L34Up2rhmhkeN96n1G8EeI1oT3QrWrKZlsQbA2INjqDY3se40/6VbQM+zcK7JHH8tMoWJMiKoAACi5t61mJWq3tLayNgIMOt+sjkldrjs2f2bHjTCmg2L0gxE8GLbGMhwEWHaPqxHGidcQohWKy3z3132FxoLi3MJDXRNubS2XLBDh0nxUccCkqghUh5SDeWQk6sbkcAASBa9c3dqEdIJK0sF8Hgo5+tYTTuTHFfs9UFsZGtZlJB0dGVrOoB32odGNkDEz2c5YYwZJmOgEa6kE8L7vDMeFVOku1vjWIaUCyezGv0Y1vlHcTqT3k0rduhktWz3tTahxEjTNo7ZRYWy5VUg5uJa4U3723aWYbK2qRZXvbTfvAO7xXUevhWZBtVmKS92LEEDTTNcgAKpuRYWFr62AtauSimNDI4m9U+BBHiCDwPMVPsjHnDuIySYXPZv8ANbih/I/61m9hbR3Ix0Og7j9HwPD9WfSRBlKtuPLeDwI7wdai1RrTtWjvHR7H9dAj3ubZW+0uhPnv86ZVx/oD0yTCxYhMS2UoLjRmBfRVsEBY5gVOg3Ctb/8AJl41mOKOZlDxgAJGCRcZlGrjXUMxqnLRleJ8mkbOiquy8aJoklXTMLkb7EaMptxBBHlRTkjztjHCCCSY/MUt4m2g8zYVgNmoY4Rm9uTtueNzuHf+YC1oOn011gw97dbJmb7EVmJ8mKHyNZ3GT+XIchwHlUpvZpwx1Yv2vjQqksbAAljxCjfbmTuA4k2rNY3COBnk7MsuUZGXRU9q0ZJucmUK2i9pyN7G5tvH3kRb21EpJFxZSRECLWYZlZip4qtTbO6QSBmkdI5BIMrI4JBUMzaE3IJZ2bTTVRaygBoKlYmWVuiOOygAbh+r14eWmQwUWI1wz2feYZCA37DHRv1cjdSTFBkYq6lWG8MCDTJkmqCWSo9oY95CDI2YqoQE2vlXcNN+86m5qB5P137h/tVOQk3vcDlx8+VMcPM04qsCWYLotyBmc2UXNrtYEgDjoakc23Ux6Jph2xNsUYxGEY/KOEXNdbAkkA6E6UN0rBK3RUbYDtomIwcjcETEKGPgJQlKNrbOnw5AnieK+4sOyfssOy3kTVnpIkS4iVYSpiDHIVbMpWw3Nc5h33qDZu3p8OCsb3iIs0MgzwsOIKNp5ix765s7oqw7UlSKWFHtHNbrBYXOU3Gtrjla9jc1QrSS7OhxiNJgkMc6gtJhLlgyje+GJ1a28xnUcL2F73Q/oO2IUYnFt1GEAzFicrON4y8lI47zwFrspyQUxR0X6Lz458sQsgPbkPsLxP2mtrbzJUa146U7MiwmI6mKUzZVHWMQqgOb9kBSbWFuJ1NbDaXSeScfENjQFIV0LoLaXvfNuQXucxOpuRdu0UfxHB4Ag4grjMQDfqV/ulPKRj7RvvB1+rxpOWxuOhXgMOZFZ0scigZEW7ut+09k1GUEHOwAO699K0+ycX1iam7DQ9/JvMfnSB+lU0mIaZkiuQmVApCL1TZoiMrA5lO4k7iRu0EmwsRkktmzDNkvawKknI1uGo7rAgUTVqymGVOh5jlKssg0vaNjwsx7DH7LH0buqfo78YxKZNVMZKsvEa3HuNvEGppoA6sjbmBU+Ytf86e9BdhYpkfG4aWNpH+SkgcZQrKSskhe5+eCwFtzc9KRbVFZaaZvOgCvFG2Hk1K5ZFPc11IHgUv+3XyrPRnYeJikM2JnV2K5QiKQi3KknMdW9kW0FtedfKrHozTacnQj6UYnPj3F9IYlTweQlj6oR6Ug2jN2TbedPXSp8TiM+Ixj88Qyf9kdXSLpFiskbMN4DMPFVNvfaovbNUdRMnicUHd2G93GVgdyL2F0tr2Qp8jzq2slhSeFiCi2sFBK9kAkbt9rsOV/Kr4V8hcI2QaFspyg8idwrQYm7J2l92vgeBHKpcTtR5GQ4h3kVQF3jMEuSbGxudTqQSaWNLXhAXZUX2nZUW+7MxCr7yKGgN9g9ggRtisA/XuFHVhimaJjcPIdwLAaLcBQb6sbAYXEllZlcMHB7Qa4a51ObNrfxq5tTaTQYtzhHaIRHq0tpcRjIS3PMQTffrTyDpVg8coi2jGIpNyzpp+A7PE2sRc+yxpE2ux3T6MbI9Pej8GAaEHE5DL1jCzSyR9jIuW+V1FgxZr8bZcwuAffSHoZPAvWxH4xAdQ8YuQPrAX0HEi9rXIWsbPIAL8LX8qdOxGqHnSXZGHiw2HxEEzMZy/YcAHKjNGZEHtKmdGsGJNmW5uDfLgFiFUEkkAAAkknQAAakk8K2HSrZk0uNhwECF5MNhoIDbdmCCWR2PzRnmIJPHTXSmuHnwWx0LDLiscdA1vk1vocl9cvAnjrc27FK5pa9nVFtWfNhdGIdnIuO2k1nHahgU9rNwJtvPqo3ds3VVPTLbs+Pw4xAe0CyGN4Fv8AJk9qNn35g4B1Pzha50tmds7WmxUplncu557h3AcKZdC2DzNhW9jFo0JvuD2Lwv4rIot9o1xp9sZP0hbg9s4iKJ4YpXSOQgsqm1yBa9x2hcaGxF+NUQKmwmFeRgiqS+oy7tRvvfQW76tz7ExCKztEwVfaN1079DcjvGlNcVo7HFkkrUW0vwLwbG9OMPbMgAsXBUm+8nVLadntBRx8qUEUyw8hEQYC+Qh9wJGQ6a2uBdh3E5b3sLda0InTs3uCkzorcwCfHj771o+guMeJ8UiGxBjxC8iJFMcgI4jNEp86zeyUspUbldlHhe/5076OaY5R/mYeZPuNFIP5vU1mNzSaOj9HulkeIlMBUpMq57b1ZQQCVPMXFwQN+l7GvlYvY79VtWA8GEinw6p2/FRRVou0ZMkOL0LMLJriTzxeJ/iWkXS6S0R+yfeUFOcpSXFoeGMxB8iyke6kPSw/JHwb3ZT+VSXZqfiK+kOAWB1CdZqptn4r2bEXUZe1nGXX2QeNdQ2YuKfE4J8Kc2y+oVXAaPqgMjiVZVY5i+a19L3/AGq4piMSWKXfPljCDS2VVLEJ9a2Y68rDcBTnBbeSDBSwwoy4jENlnmOW3xcDSKO2ozH2r8L8xl0GEo4qVM7dX7GZsn2LnLv7rVf6IEHHYYHX5TN5orOPetIDJTDoxjBHjMM53CZAfBmyE+jGiXQLtFAYgsMxNydT4nWo3evWOgMUkkR3xu0Z/YYr+VVia6cHGwelGJwZHVOSl79WWIGnLl4EEd1brZ7YHH/2p8KQUV3lCKxdypUG0cbZXfXfxBud1hyotWm6BYx4mxUysQIMNNMvITMogiPiWlHjlHKpyx+0UjOlTNN8IG33wsk0UKKrzu8ksmt2ubgPftdlWVcnDUHiDzGQlmLMSWO8neavviHlOaRrn3Dn6/rcKiaKuwhX7OTny16KmWrmxmy4iBhwmiPpIpqMpV/o1gzJjMMg4yoT4Kwdv3VJp30KuyXF4w4faGIdRcLPOpHNetYEd24HypjtvpNG8WSG5MikMSLZVOhHe3DTTjeqWyMbE20lnlKiFsS0rF1zLlZ2cZhyNwL62vcg2tWi6RbawbYbERoI2kYxBcgQ5pDHh2knZxGtyhikTOmVXMpOQAmpPFGTTfaNeL+bmxY5Y4PT/wBr9mX2H0akxSlo5YEGYpaWQobgBr2ynTtDXxq7htgsvxiBnzGPQmH5RGLR9aouStxoL6fNblWZdBxApxsfHPBBIY2C3ufZU3I7NhcHL2WfXxHGqbsy6o3WzE0J+llb7yqaa7KFsdgu9p18jhpD/KKiiw+U5eVh90AflV3ZUV8dhPq/GH9Icn4yVnNy6PuPbLjIWHAv/wDm4oqXFw5sdAnMv7o3NFNHojleyt0nhMe0MYvBzFMvgyFWP3hWa27HmjIPgfBgV/Otz8KmFyYrDYgbpUfDse8HrIh5sT6VjcSmZSvMf7UstMpB3FHOmYWGhDa5tRbusLaW1vqb91fM9WcVEwdkC3LEMBlu3zrgcRqTcDfYchVAmtCdoxyVOiUtXhzcU42J0amxC9YxWCAatNJotuagkZvHQd9VtuphVdVwjSuqrZ3kAAd7k5kFgQLECxA3cd5FJXQcWlZf6UHrlixy7pwEmt83ExqA4PLMoVwORJrPE012BtNI88M4LYacAShfaRh7EyfWQ+ouNdKh25sh8MwBIeNxmilX2JE5qeB5rvHhYkWtA97FxNaDAXj2ZiX0/tGIggHPLCr4h/eYRWerQ7b7GE2fDax6uXEt3nESlUv/APXAh866xRVEamqulTLQAFac7IUwQTYs6MwOHw/PrJB8pIPsR313Xa1RbH2QZszu3VwR6yynco+iv0nO4KOYqLbe0BO6hF6uGJckMe/Kl7lm5ux7THnbfa9K96GWtioJXzLTvYuGwkiumIleGQkdXIQDEBY9l+IueJsNBrvBi21sKbDH5RbofZkXVGvuseF+Rt+dd5K6Di6sTS7qd7IwIkMEJBJkkjU66ZWbt3FtdDe9xYKd99FEcedwvr4ca6F0EwGbFNI62XCRsTpY9ZJmQK3M5et37rCiTpBFW6NPKt5GPf8A71e6PQ3xpbhFhz96aUD+GH31Xw8ZJvxP4mn3QzCKRNM7BVlm6tCSBnWEdUoW++7CQ1nSs2yaiinsbD59rKf8pHf1HVj+M19roEGGRL5FC332G/x50VWKpGSc+TszPwnbLM+z5cvtw2mQ8QU9ojvyFq5NFOHVXGmYXtyO5h5EEeVfoKRAQQRcEWI7jvr8943BHC4mXDN7IchPHh95Mp8u+lmvZbBL0Z7pBhgsiydrLfMcps1rjrAp3A21BNXJI8PgwmJOFTELKh6nWTqVYM3acS3bWNkNjchlktYWIvY2AOpXcd4PI8DWMxEXVllINid17BXBGpG5uzmA3aNv01IO9M5ljT5INr7YmxLZpnLAeyo0Rfsrz7zc99UK9SpavF6sklpGdtvsDTXY23mhVonRZsO+rQv7N/pId6N9ZbedhS/BYV5pEijF3dgqjvPE8gN5PAA0z6WYOCHEGHDlmEaqkjE3DSj2yvLgCODZgN1cbV0dVrZZfZOEnucLiOqY/wCDiAbA8llQEEcAGUE86adKejOKkxLCGLrIoVjw6FZIjph41hOme47aOdRxNIOiMKtjcPn9hHEr3+hCDM/7sZqkjyTSfOeSV9w1LSSNuA5lm99cphaHS9E8WP7xEhH0pZoUX+Mn3VYTA4ODWeb4w4/woMyx35NKwuR3ovnSPG4WWCR4ZQySIcrqSLg8uybGo1op/YWvobbW2y8+VbLHEnsRIMqL324neSTcm51pfTjo3s2PErNFqMRlzwa9lsuroRzItrfcSdMpun8R66H/AE1oVdA77PlXtl7elwwsuWSIntQyaxsL3YAfNv3aa6g1Qd7C5qbZOzzM2Zh2Bv77fNH511pPs4m10a3ZWCwb9bizCYImjuseZmIsR1siWG4F1CqdG00GoXZ7K2YcLhEicWnnPXzi9yC1sqH7ICr4qx40p6F7P60/GJCwwmHa4S/ZmxC2tYbiqEKftKuvZNtGXaRy7b2N/wCgHgKlN+jRhjvkRSsY42Zfa0VP+o2iehObwU0u2G+GmylTKY1CxIM7BTOeysqD5rKiklhr2zyprJhOvkMVyqRq2dgCbOVsx0+gpy34FjVbYPR8FcOENhlL8m6yYso0+pH1hPnSUWbR0To1GFwyZblWzOtyScjuzoSTr7JFFMYowoCqLAAADkBoBRVzE3Z7rl3wsbHHWxzbllHVsRvEidpGHeRf7ldRpN0u2T8awksQ9u2aP/qL2l8LkWPcTXJK0NCXGVnDgWuVcWdfatuN9zr9Vvcbil21tn9YLqLtaxH0hy7jyNaTDYQYqNQpCToPk2a9jzjk45T6qdRxBVXN2VlKOhyuje0rcjzB3hhoRqKgbDFSJwdja1lJBJuq2WM/RtYL3DuFUpYiPCtptLZgkuVsGO+/st3Nb8RqKVbNVI5QuJVjGM3YyhirOAM9gR1iiwPZN9NBztGf2ZsmJraLWwEOCwrY9gOslvFhQeeoeTwFj90j51ZQknUkknUk7yeJPM1pelUaOIRDiGmjVD1SaN1cYGZrW7QChdQ/aCoLsbEJmmjYcL0yXsk36G+wuzHi5voQGNT9fEukJt39UZ/StT8Gpw+FhxG1MSJD1LLh4RGELrLKvakAfs3CkWJ01bQ6VhY8cRE0Nhld0kY63vGsqqN9rfKsd2+1OOjfScYaOaCWBMThp8peJ2dO2nsujpqjd45DdaunC10y2KkEkUsUrzQ4uP4xG8tut7R7YktoWubkjffzKEGmPSbpG2MkRiiRRxRrFDEl8sca3sATvOup0vpypQZ+6hAXsHiWjdZENnRgynhcc+YOoI4gkcad9LYQVjx0a2ixBNxp2ZhfOptu3Me8hqQ4bZ08m5So5nsj+prbdHdlRQxNHipj1YcO0DXUFsoyFVAzyM1gAg32B0sL8a3Z1PVGR2ZslpiHe6p7yOS8h31uujuwziSVjYxYVBaWUdm+gLQx8zfQtqBv3kAsU2B1rGSe8GGJBEI7MshAI7QGsK6nsg5jc3yaWdvPmVY0URxILJGosABu0H6/GllOuikMTe2TTyqwSOJQkMYyxoNwA0ue/wDW8mpblFGX22vk7rb5D3L7zYc6MLBuuCSdFUb2I325AcW3Dx0qxNhWLCMG8khCkjcByUcFUXNu4momnSHHRDZa9Q5YXWW6WPFBcMT3sxY+lNsBsOGGRpI1szXJ1JFza9r7vZHv51ew8IRVRRZVAUDuAsKkq6RjlJtsKKKK6KFFFFAHH+l+AODx5ZRaOe8q8g1/lF+8c37YqLpVGs0Uc4Q9YgKtKgu6pYEZ0/xY95K7xvHEHoPT/YRxWFYILyxHrIuZYA3T9pbjxynhXOejW07ga/18vI1GapmvFK4maimvYGwJ1Wxujj6UbfOHd7Q3EaGvuIw6uLOAR7x4HeKeJ0SOLlnXDPEjpZpMO+YIzEm0kZAOVWGoPC4GlZ/GxYjCuIsTGyHcBJYE/Yf2ZB5nlXKKcldCnG7AJ1Xt+Ng/rubzFLZMI6AggC5B7QytpfRTqLG+uovYcq18Uyk2vY/RYZW9Dv8AK9TFeBHka6pNCyxxZiThSQPknJ1uRZx3WyDs6cyfLdV3AbOwxJ67MgBTfeM5SG60gZHzlTYBdCwN9NQNIcBGfmL5afhU0WFC+yzjwdv603yEvg/Jn8bsrCrJaBZJVsSCA0hJ1tcKqhQTw1IGv1anwmAkA+TwjqbixfJCON/73KW4bjprvvpoRFfeznxZj+dTRQgbhXfkYfB+RfBsWRgOumRAL6RKWcg82YAA94Diney8LDh9YIwH3GR+1Ib79T7N7ahco7qIY77hfwFTxFdRfMRqQlmIHNjfKg55mFI5NlI44xJ1BY3JJNWHmSPRrFibBfrcmtrfjlGtgScoF6qYAz4k5cFHnG4yBiIF555rfKd6Qjxaq+L2E0UqYV5BJiZ2KyOlwkOFADuIh8wsul9Nd9ybnlHeVujY7IdepWbUmRQcxtcr80ADRVtYhRz4nWmHRfDZ5HnO5bonj85vwF/tUnx+JLMsMQGZiEQcBy8gNe4A1t8BhFijWNdyi1+JPEnvJufOmgt2TzSpUWKKKKqZgooooAKKKKACuOdO9jnB4vrUFoZyWHJZN7p3X9oeJA9mux0s6R7GTF4d4H0zaq3FXGqsPA+ouONLJWh8cuLs5dhNpCCfD7QBsqEYfFf9CXRXPcrAE9yDnXVduYSOXDypKiyKUbssAw0BsbGuJYQGGaTCYoZQwMMoO6zWs45gHK4PECvuElxsqdvF4js/JWSaRUIjHV7lYA3C3J4knnSKVKi88fJ2hXHs32FjcrmKgK3bQXNtA1yvrUKSugFwQPqN2fuvcelMjsE/Sb7xr4ejp5t6mopSXsuytHjTzB+0hH8DflUy4s8k9XH4g17HRw829TUg6OcyfU02wIvjr8o/MufwtUbbVYfOA+ygP8bG3pVz/h0d/qa9f8Pr3+po2BQjxkkrKgHtHQyMWA46Ktl4biDVno/D1+Iw6znrUMsY6trCKxbX5MAL6ip/+Hxwv6mvA2IVIKs6kEEFWZSCNxBBuD3iuUwO7SusUdwAFUaDcOQHdwFcpw+ODST4sm5kJjjP1Fbtn9pxa3/L76z+PnxceUfGp3VzlIklkkUXv2rOxtbfpyq7sLBtjcQmGiusSAZ24rEtl3/Ta1hzJJ1saq3ZCMOCbZu+gOzy5bFuN90iB5Xs7+ZGUdwbg1bWo8PCqKqIAqqAqgbgALADyqSqJUjPKXJ2FFFFdFCiiigAooooAKKKKAFO2+jmGxf9/EGYaBxdXHcGGtu46d1c02jBHhp5cPGCEjIC3JJ1RGJJO8kknzrsNcn6YplxmJNuKMP+1GPxBpJrRfA90LxjRUgxN6UYxVUIQe2Sxbw0y/rxqxhX0qRpGXXV9E1Vq93/AF50HSx19eTNUIr6KALCy18klr7CutesTGoUtftA2tfeuUkm3jYeXfQcPex9kx42YQylwoUv2CAbqVFrkHQgkee+ujbC2Dh8Ihjw8YQE3Y3LMx5szEsx8TpWP+D3tTlrf4be9kroVVh0ZczfKgooopyIUUUUAFFFFABRRRQAUUUUAFcz6eJbGN9aBG87yL/KK6ZWA+EOP+0Qn6Ubr91lP89LPorh8jB44L1aH59wO/LlN/fapMEdK8Yxl6sXtnzDLodwz5vD5tfcFUTWhhavQryK9Cg6H6/pX0GvLGvq0AXcMKr7WdAL6dYA3jkIWxt3kn0NWcMaW7ckQ3y+2BZ/MqVHpf1oOM1/wax6yHkij1J/8a3lY74OI/k5W5lR6An+atjVo9GPL5sKKKKYmFFFFABRRRQAUUUUAFFFFABWK+EhP/5n5M6/eCn+StrWS+EmO+Hib6MynyKSL+JFLLofH5I5viz8m4yXN/a+iAdT57qgwBq1JmKzBbWsS1+QKtp36DyvVLBHWom1DUV6JqNTX0mg6ejX1DUd69oaAL0BpZteUMQALWyqdLXOZ2v3ixHpTGJtKWbSdjIA4AIIAt9ELdfcR76Dns6T8HsdsKTzkY+gVfyrT0j6FR2wcXfmPq7GnlXj0YZv+zCiiiuihRRRQAUUUUAFFFFABRRRQAVnen0d8DJzUxt6SJf3XrRVDi8MsiNG4zKwKsNdQfDUeIrjOxdOzh5IJkuAeyTqbfNOvf4VSwj6122Do1hEAAw8ZtxZQza82e5Pmaz+2fg/gYtJAxhO8rbMnPQXBX1t3VNwZpWaNmDV6+56YtsAg26z93/2r5/8H/zP3f8AWlplOcReHr0r1eGwz/mfu/61LFsAkgdbv+r/AO1FMOcSskmlKsTIOs3sbE+1v07I/Cuo7G6GQx2aU9ceRACea3N/Mkd1MMX0UwcntYeMHmoKN6pY0ygybzRssdHY8uFgHHqkv4lQT76Y15RAAABYAWA7hXqqmZ7Ciiig4FFFFABRRRQB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSEhMVFRUQFRUVFRUVFRUVFRUVFRUWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi8lHyYtLS0tLS4tLS0tMi0tLSstLS8tLS0tLS0tLS0tLS0tLS0tLS0tKy0rLS0tLS0tLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAABAAIDBQYEB//EAEIQAAIBAgUBBwEEBgkCBwAAAAECAAMRBAUSITFBBhMiUWFxgZEyobHRFEJScoLBBxUjU2KS4fDxM0MkRGNzg5Oz/8QAGwEAAgMBAQEAAAAAAAAAAAAAAAECAwUEBgf/xAAuEQACAgEEAAUDAgcBAAAAAAAAAQIRAwQSITEFE0FRcSIyYaHwFCOBkbHR4RX/2gAMAwEAAhEDEQA/APJ1UmTpRnVTw8nCAQA5koSZaMkjlgABTi7uSgSSlRLGwFyYhpNukQ06FzYbkzUZHkH6zjeS5VlIQam5lwMYFnFm1PpE9DoPC2vryLn2OuhglA4jzhxK583HnOapnI85wu2bawzLtaYEcagmZfOZz1M5MNrJ/wAO32zVtiBI2xY85jqmbtOWpmjmSWNklpkbZseo6yg7RYxWWwmfq45z1nK1Yk7mWwx07I5cKUHQ5jGA2IMeRGkTrTPOZYWmaPL3us7RKrKH2loplhyxXA4wGOgtEOhsBEfaK0B0RkTM4nKamttK7E3E1MULE42ZmlkrnmwnbRyNB9oky4tERHZHYjkpYRF4UfST6Y60NoiVEdojHWgIgFDCICI8xpEYqI4YdMUAoyJqxDeMppOhFlxmCRJKEiBtOnA4VqrWUbdTE3XLJQjKbqK5G4bDM5somuynKAgueZPlWWLTHG8sKlQKJm6jU7uI9HpdD4esX1S5l/girqAJmMyqnVzLbHYuZvGVd5zY1bPQYoOK5AahjSZD3ogNYS+i0kJjSZE1b0jDUPlJJBZIxkZMYS3lG6HPQx0RcgsZExj/ANGqHoYhgKh6GStFU5Nro6EW8LJOujhSo3ienGpGNkxcsOVVLG0vVmcwx0vNFTMvvgyXGpNEkEIiMB0NtFHQQAEQhEBMAoBgMJgAgFAtEIjFAKGmAx5EbAKGkQGOMBEAobBDBGFGUFhA1WQM8tMmyVqxDMLL+MtlJRVszcOGeWW2C5G5ZgHrHbZfObrK8vWmoAEky/AKgAAsBJq9YLMrPqHN0uj1Oj0MMC45l7j61UKJU4rEwYjEXnI2850jZxYtvLIqhJnMcsLmW2Gw15a0MOBJKVdDyZFEztLIpOuRjyl6+IRfX29eN5x4jMrcWA6evIG59QfhTOmGDNP8fJk5/GsGLi7fsuf+HF/UqjmI5dTHPT+X/I+s58Tmw5ve3Vuo/wCd7XH5UWNz4D9a/txt/qSfedcNHFfc7MbN4/nnxjSX6v8A0XCspvpVSUOlhfcHm1x0PQ/8S3wODp1F1KB6jqD5Ged4HMMQ+JFTD02q7aHVQSrLyAzcKRc2J4noKZbWS1SmQhIF0Juf3WC3B+seTSRlH6eGQ0/jeeE/5rtP44O7+rVHSM/Ql8oDmbLtVpOpHJAuv5/dJ6GIVxdWBHp09COhmbkxzh2jfwa2Gb7JJlTmmHAG0pHE1GZJdTM1UEsxPglmV8nDWFmBl5hHuolLiht7S0yt7rOyDtGNqI1kLCK0SxwkioZFHERpEQxQQmAwChGCKCAUKCGCAUIxtoTBAKAYDCYCYBQLRRRQCioyHIC5DuNugm3w2GVBsLR9OkFEgxGImdmzubNrSaSOGO2H9WSV8RaVdeteCrWvITKkjUx41EE6cPh7xYehK7Oe0Aw1akqkFQT3wtewNgLeouT8SzFB5JKKOfW6tafE59/guHxS020EFTbUNW2pRyV87eXPpuJx4nM/Mn2txfnY7bDb3v8AFni6S1ksTvyjDlTbZh9Z5/Uy/GVKz4dUJZAWvZgjDa2lgCN7jnbm5Fps49PDH0jwuo12bUtucuPb0LXGZ4F62PobkdOfQbfU9ZQ4nO2ZtKAlm2AALMegAA5mhyr+j52IOKqkk/8Aao7n2aoePgfM0hXA5cp3p0uhCWaqxHRnJvf0Jv6S1/k5PgxGD7L4yvvVIoKetQ3f4pjf6lZocL2NwlAd5X8Y/bxDBU+KewPsbyozr+kY7rhUFMf3jeJ/cXG30BlCmWY3Ff8AiK7aKb8V8VU7tCP/AE9Xif2QNFfsiW1+ps8f21wdAaKQarbYBAKVIelyL29hM5mXbzGVfBR00dRsFpLqdr7W1Nck+1pFQy/A0+TVxbDoL4XD/wCY3qv8BJa4bNqyDThxTwqna2GTu2I/xVjeq3+aFX2NJLpEeUYbPlBcYbFVVccVlcexUMVYfGxklTNcRSrKuIwz4Ss48BdSqVbcqwIA3PBHp13kD4fV4mZmbnUWYt/mJvKTtIKrKuqtUqLTvpDuz6b+Wo7RSgqpolGUoyUk6Z6Zg8UtelrG3IYdVYcg/wC+soMbTsxE4uxea+MXO2IGk+lVBz8j75oc3w4O45mY8eye1HrNPqfPwqb76fyZ6sLgybJn6SNo3Lms9pbjZRqo9M3eV9mK9ZQ40qp4J/KXmH7HUl3q1CfQbSfss7VcJpU+JDtLSjhCo8bqOpuZ1xiqMieSVtWMwOWYZCAlME+ZmK7YYUU8S1hYMAR+E11fN8LS3NTUw8j+UyXabMlxVQNTQ2UWvbmKbVUSwKW630UZgllhclqvYkWHrIs2wBota9wdwZVTOrcro4YIrzvw2TV6i6lQkfT6RJWNtLsrzBeX+T9n+8VnqtoVDY9Dt5yHtFkn6PpZW1I/B9Y9rqyO+N0Ut4IrwXkSdBMEBMUB0KKNigFF3icTK6pUvGPUvAN5lUethBRQZ1YfDw4bDyTMMWtCmXPQbep6CHfCK8mVJFZ2izgYddCH+0Yf5R5+887qYo1Htze5J9Yc5zFqjkk7sd/ykGWDcsfKw+eZq6fDtR5TxHV720es9khrw9PWSAqKGPXbYKt+pt8TR5vjKGDoa6xFNTYrTF7m4NtbWJJNjYbk2O1gSM32NqrZS32KCGowJAudN7EnbgAfAnnXbTtI+MrlibqhYLYmzEmxf5CqAOiqo6Ttm30jz8Y2XPaD+katVumHApIduBqI9Rc/eWB8hMqlFqx1VahB9QalQjfZUvsPK5VfWDA5dq8TceUvsNhlUWAkVEs+BuAUUt6FJUb+9qha1b3UEd3T+FJH7UmqUGdjUqMzueXdi7n+Jt7ToW0MntCiOjQubKCT6C525nRhcOz/AGRsLamOyrqIUFmOwFyBLDstjFoYulVclVQtdgCbakZQbDcgEi48p19oczetVWolNFqmm9OtoBNNrs4UgHm1PQbnqB5Wkkg/BDicjanTqOzrqpAHSGT7QLd7T+1fUqgNxvva/JyeJrA3U8GdOcY6s5tVYnTwvCLsB4UFlXZRwBxKDH1TzFIe1kmU1ClRqV7EnUh8nXdbe+4+Z6PldbvlVzw4v7HqPreeUVK5utQfaXY+44M9B7J44NdOjjvU9Dw6j5nFqI8bl6Gr4Xl/mPE+pf59DpzbCFGv0P4ytU2cGbGtRFamR1H4zIYqmVNjyplS9GjSmm4uD7RuOzWIrWZKb6ARc7XPxLTGZdsddR3a17E2H0mb7NVn1qEIBba5miXLajYvuqzmzLe67XEvi+DNmqlYDhcKAGawuBtA2apT3pUyUHJttf3ln3FHD0GqLS1sjFd9zzaP7M11xCVlqKFueLcbSdehC+L9DhSpiKoQgKiVTseTIcHlHeYipSrsWNMeHpzLoYc0qAX+5cFT/hvOfEHRj0bpWp/eP+YNe4lLujG48oraQttDWb1sZt2q1DSpVMMQQg8SC3iFpje0tLRiag8zf6y6yXBVUpJVove5GpCdrHmQXEmi2aTimdvfmvhcRddLb+HqCJx5we8y+m/7On8paYvMqKVSjkDvU8XvKrMszwqYc4dWvttbc+km2vchGLtUvUxxMaXnO9acdfHKvJE57O3ayyNSNarKJ80J+yrN7COwS4ivfSukDqZFyS5ZbDBOTpItjWikI7OVTzVN/aKV+fD3On+Byfj+5ZqL8SywmEiwmHAhzXGClTJnJCLnJI1NTqFCLaOfNM9oYcWY3byExHarPmrW6KOBOztJlofTiU3tyJjMdiSxmosEYcJHkf8A0MmS5TfwiB2vOrCfYPufwE4tJMsMstuvz/I/ylr4RxpeZKjZZbjf7DFU+r0KgHmfCTt8TJ5nly0qgKMWp1A70mPLUxWqU1J9SEB+Za0auh0ccG1x7cidGa4QHBIV3OX4h6J6nuMQO9osfnUPmS3WrKJQcJbWTdkcpONrph1dUaoGKlr2JVS2n3NpbpkSLQw1d61lxNSrRqKAAaFRGKrqud14Y8bcczGZfiGRgVJDIQQfIjrLnMu0b1wVZKKBqprWp0wlnZAhAN9l8N7eZJltiNHTzLDU6RVU8ZI1KLM1mHdVqRqkH9l3BHGpLA+K1HQVjuATbkgSHJkL1AFQ1QASVRWZuOLAXm3yygrLYDQQRdTswI6W2IlsIWcuo1HldI4cpwgcqGWx07AqRc267+cvBhwAQdIsCSTtYcEn7tuTfgy+p4WnTuFRTpuCTe5I59hcdPvmazs6apU3sONuOov62P1E6cMd7pFeDLeRbjgzjIVYX2NwGRlFrgjy9DcH2nn+bZc2tlA4+gtPWO8V6AKkHuT0/Yc9fIB//wBJlc+XVa24PtzKdTjajfselx4t0Wmjy3zH+9pfdmMcUI86Tax6qfC4+lvvlfnGF7uqfJ9x79fz+ZBgK/d1FboDY+qnYj6EzidSiZqbxztdpnslGtpIYbhgPkHrODtHg7jvF4PP8jIuz1bVS0E3NI6b+a8qfp+Esla4NNuCDb8pm45bZPGz1mWKy4454e3P7/BXZPWIAI5U3nqGAYVhSrj7Sgg+xnleBTQzKeh2mv7L56lDUtQ+E8TrhKnyY+fG2uC+ynF+HEiwJR2IB+srOzGMd61QuunvF22sNpT4LtIKNWq6jUtQkzlzHtTUcgjSmni0k5oisEueOzY4XN1elVo1CA9MsN+tuJwHPMK4p1Haz0RsP9J51i83UElnuW5t1nKMbUf/AKdJj6kWH3yDy0Xw0e58X/Q0meZp39VqgFgdh7CctHPKlIWWppHlKyllWJqfaYIPIbmd2H7M0xu5Zz6nb6TnlqIp3Z3w0E2qfCK/FZyGJJJdj8mRoMRU+xTIHm201OGy6mg8KAfE6golEtS/RHVDRY127MtS7P1X/wCpUt6L+cscN2coruRqPm28uQIRKZZZv1OiMIQ+1HOuDRRsohw9EKNha8lqngQyFllugWiiiiEcVbGEkqu1pw4zD94pBnNj6jU6l7bHrOinjFqKQpsbTew7HD6TxfiMdRDM3kb/AB7GZOYVKV6d7jymcx9UFibATtzVnR21G+8pa1YkwViyPHttLkDNHYWtpYH4PsZDeC0nRzKVO0aZdwR8j45l/kf9tqon/wA7Rah/89O9bDH3JV0+RM1ldUMqk9Nj+H4G8ssGzo5VTZ1YPTPlVpsHpn/MoHyZXB9xZ16zHuSyR9Sk3G/UcxrV5e9pKCGs1VBaniQtZB5LVGrT/CxZf4TMww3sdrS6LOA05xjU8JQ7trCs1c1iCRqqU2UKrgDcIjU2AO16pPWarKKlSthhVdjrwropqXDFqT7LcnfwsFsd9qgF7Cw8+yzNDTVqbU1rU3IJpVNVtaghXRkIZGGw2O4NjcWtpclzepXdtKhKFOjX7xKeooDVpMo1MxJZzUFK12vcJawBtdjlTs5tRj3xaPScpzAjmzbXBPHvb6cyq7XVdaswsGFRAxX9ZXVyLjzBQ+9/Sc+AV6VPQbVLb+IMoG1hpKkEG23rbcSozbHuycKqKWIC6t2JIuxYkt13J87W3mrgiozUmYmPJT4ZNlOPWnq1aijqyOARchhYkX6jkeqiUVasV3B/KUdbM+Qt7dbmWmEpVa1gEKgoKmpwUQUtQQ1bnlAW3Iv18pHVZMc7SPofh2vxvFtycOiqzc95T1X8Sm9vTqPpYyivNdmuRBKNX+2XvsOQatI3VTTYEo1JmA1krY22PTm18hMRRoydVKEsjcDc9isf4kB/XHdN+8u6H6bfE2VanPKsgxBVyo5PiX0dNx/MfM9bwlUVEVxw6g/XpM3WR2yUkeg8Gz7sTxv0KTF19B1NtaVVXOLmyKzn0E2NXL0fkAxtPAKv2VA+JUtTx0dr0eNu7MlTo4upwoQevP0nXQ7NM29Wox9BsJqBSh0SuWomy6GnxQ6V/JV4TI6NPhBfzO5lglIDgSTTFplTbfZdY0COhCxaYhWCKG0VoACFYAI2sdrecA74GKb7x0OmG0ZKxsUVoogHV8MrjcTMZrkjIS9P6TWXkFc7by6E5RfBTPHHIts1aPIc5Lljq5lOVM3/AGqwoJ8C7+0zf6NYbjeamHImjzmv0M4yuK4KYJHBZ2VMOfKQmmfKdBjtNdnTlbWJHRvxEua5+zU68H3HX6WlDSUrv5S9w7BlI/aFx7j/AEuJTk+mSkaWlfm4ZYn2uV+/32d9YCpT0/3ZLL/7dYliP4aoqf8A3LMrmNPS3ofxEvsNWstz/wBu9/3GsG+hCP8AwTizrC7G37w/nLUzNlGnRUUqZY2G5O03X9e90i945rH9i9gpta6oBpB+BeYTDhibKLkg7AXNgCSfQAAknyG81GWdkMXUciqhpKpKFm3IqFbomkEtsWTVtZQHuRadGPJs5XZy58Pm0pPj29yZu2FUN4gGW/lY2v09RK7Ne0BqDStwPoPlfYztxowgwxUKqVGUMo195WFVajI61CAQi6AraSV3Y2B205Uyb1GSqsjHR4U7UTQdi8woYfErUxNMVKek7FblWFmUrtcE6bXHGq/SWGbdtH1s2FVkDVqla9Yiob1FQFVU30IDSpnTqbdF3sLTK0iIWEpbOqiLHYp6rmpVYu5tdjzsLD7gJymTusiIkBkuFqFXVhyCD9DPVuyNfVTZOiNdf3XGofznlmFFm34AN/memdi0I7y/QUlP7wTcTi1qXlmx4NfnP4NQDFGiSgTJPSPgFoNMdFeMVjCsGmSGICILGaYLSQxpgNMbaC0dAYDsbIlFzfyklRrCBFsIEl0IiNIj4CIDGWijrRQHY+8a63jwIrSRCytxGFB6Snx2Tq3Saaos5WpyUZNFyakqZhsVlDp6ictOkh2IsZu6tC8qMfkqvuNm8/znbh1TXEjJ1vhOPKrhwzL4nCSPDXXbyNxO2ulSibOLiMNMN4lnc2skeDz0I5NHnW9DGYK4a3hfp0sdiv4iPNO6FeTRNr+a2ujfKkfN5ERdSOq7j26j8D9ZLQqfZY8H+zf2Juh+GJH8YkMcrVE9fh2ztddlB3j0aodCVZSGQ+RH4+Vus78y7S4rEMb1Coc2CJ4QAXLBQef1gOdwqA30iNzjDc+a7/HWUsvTM4mNQ8fEbeMBnThsLrDG9rbcbDYm7n9VdufwhYwUW4HU7AdSTLOngy9i3hBuLnnYleP37D+ITn/S6dMMtO51bHcj9UqbNyeQRcEAg+hkOIxdSp9ok36dN+lv99IBVjcdpDWQhgQDceZG43A636SGlTJ467SyweUO258K9S3P38ex38gZYr3VEeGxP7Tcf6/cD1ErlNI6cOlnP4OXL8v0kVKi+FTdVPNRxwLeQPJ+OZ6R2fwTUqI1fbqEu/nqbzmR7MHvsUpbxBAW3/wiygDoASNp6ApuZm6rI29p6Xw/TRxQbXZIgkkYI5TOI7WGNjrxPbpf5N4CG3jowR14DYrREQxQENIjbxxkdQ2gSRGdzby3MfBQXa567x9oyTfoNtBaPggFgAgj4ohWKGCGSABEY1OPggCZy1EkLJOtpzVFjRdFnDi8IGBBFxMtmOUNTOqmbjy6zZEyCrTBnRiyOD4KNTp4Zo1JGCWt4r23HI/H+ckQAEqfsuLfB4PuOfcSfMqZqVrUhxsfI+ZnI6EHSwsy8X6+k61PmzJy6W4bH6dMGIr3srfbXZvIkdR6Eb/MpMVh7G44/CXzUlqW1bFdgRzbyI6j8PujWyhj9l0I82bT9xnRHIjEy6PJB9cGcVSeBJqeGJPr5Dcy+XKlX7dQey7n7ja38QPpHviqVIeFQPVrMx+LW+bX9YPIvQcNHN8y4X5OLC5OxAY2Rf2m6+3n8XPpO5e5oi6jUR+s2w/39AeolfXzF3Jtc3/WaQdzfdjf34+JGpPvgtXk4/tW5/odOJzNn2UXtsDwo9FA6fSclbCswLM1yN/SdCeSgk9ABc/Fpe5Z2aq1LGr4F8v1iPbpIynDGrZdDBn1Lr0/sju7D4RtTVbWUrpB8zcE29NptqZAlZgcKtJQqbATpDmZOWe+Vnp8WDy4KJ2d5F3k51aPlY3FE2uG8jBj1gRaodDFDaBEEIitEYCFeQu1za19V/8An/flHudpHQF7t8CMklxZLaAwwGAAiitFAYDFBFAYRCI0QxiCTGsYDFeA6GGQuJ0Wg7uNE06OCokqszxB+wvJ5/KXOPfSPU8D+c4MLhL+Nuen5yyLol2rOTB4EUwTbxNz+Ugx2CV/tD2PUexlvUWc9RdpYpFU4WZDMME9LcHUo69V9/OV/wCmMJtauH2IIvfY+x5mNzDL3pMQQSvRrbW9fIzpxyT4Zm6rHKCuPRzVqtRuDYdYxcOOTv6mT4WhUc2poW9h+J6TQ5d2SZrNWaw/YXn5b8pbLLDGuTOjo82onfp+ejO0lLHSilj5AX/DiX+W9laj2NU6B+yN2PueB981mBy6lRWyKB7cn3PWdWqcWTVyf2mvp/C8ePmXL/Q4cvymlRFkQA9TyT7kztJ8oQI4CcrbfLNNJRVIQWG0V4hEARJFMaqyZKcRCTQlEmVI5EkkCiUhumCEwGBAEaTHmRmBJEVdvv2Eei2AHlI1F2/dksZN+wooIoCDBCYDAYIoYIACAxRRkgiGKKNIiwgGJ7AExRRiXLK2jS71ix3sd/ynXUpxRRMtb5o56lKQGhFFC2WIS4W8ZicrpuLOuqxvbp9IoobmJ+xLRwyoLKAAOgFhJYYpEkELAYooxCEMMUACFkq04YoiuTJkpyUCKKBQ2PEBMUUCAIoooDBIazW+IooE4dgpLYe+8dDFAb7BAIooDFAIooAGKKKID//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTERERFRUVFhgXFRcVGBcYFRYYFRcXGBYVFxUYHSghGBslGxUTITIhJSkrLi4xFx8zODMtOCgtLisBCgoKDg0OFhAPGi0dHSErNystLTctKy0tLS0rNzctKzc3LS0uLS0vKysrKysrMDMrLSs3Ny03OC4tLTc3NzUrLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAAcBAAAAAAAAAAAAAAAAAQMEBQYHCAL/xABJEAABAwEDCAUJBAcHBQEAAAABAAIDEQQhMQUGBxJBUWFxEyIygZEUI0JScqGxwfBic5LRJDNDgrKz8RVTY5PCw+E0RHSD0xf/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EACMRAQEAAwABAgcBAAAAAAAAAAABAhExIRKRA0FRYXGh0QT/2gAMAwEAAhEDEQA/AN4oiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICK0ZxZyWexM1p30J7LG3yP9lvzNAN61BnNpAtdrJaxxgi9SM9dw+3JieQoOamxtnLWd9ispImnbrj0GVe/va2ur30WI27S7EP1Flkfxkc1nubrLU4avQaptNthTaW7QexZoW+057uWGqqb/wDUbadkLeTCfi5YQI1NbGApsZbLpKt1wEjATW5sYJ5AEGv13SZs/wDKV9bQ1m4FsRPgGe4lWnImRbTbHujsjWkgddzjqta01pV2N5FwG7csSyqJ4pHRTsfHIw0c19zhu5g1uN4Nag0onkbBbpNtrcbSxxB2wso4A4GhGO8U8b1fsk6XsBaYWuxq6Ilp4DUdUd+t3LSZdz8VA1xBKeTbqvN7Oiy20eYk64Gs6N10jRWl42jC8Ei8K8rkWxZTlicHNe9hF4c0kHuIvC3No80odMW2e3EB5oGTXAONOzJucTg4XGtLttlVtRERaBERAREQEREBERAREQEREBERAWDZ86QI7JrQ2fVktGB2si9qmLvs+NNtm0r6RPJgbNZZAJMJZBjH/hs+3vPo88Of7XlNzzXpJKc6d9xv70Ga222STyOkme573G9zjU8uA4C4KWAsLgyhK01bI48Ca+4/JZLkjKYmFDc8Yj5jgs2IuIapjWKLWqD5FEei4BXTNfN+W3zdHH1WNoZJCKhjThdtcaGg4HcrXYbJJPKyGIVfI4NaNlTtO4AVJO4FdCZtZCisUDYYhhe9217z2nnww2AAKyK95AyHBY4hFA2gxc43ue7a5x2n4bFYNJGZDMpQ1ZqttMY81IbqjbE846pqeRod4OYotK49tMD43ujkaWPY4te04tcDQg0PBS/rD/lby0zZjiaM26zR1mjFZ2tH62Nopr02vYAOJbdsC0VXksWMplfq5eQ7VN2H1X64qFeX0EDvqm/696DeGiHPsyatitL6up5h7je4AVMRJxIAJB3XbBXbC47sNodG9rmuLXNILCLi1zTcQdlDeupcxs4m2+yMmFNcdSUD0ZGga3cahw4OCsrS/oiLQIiICIiAiIgIiICIiAsS0lZymxWQljqSyVaw7Wgdp44ioA4uB2FZaufNPWWS+cxg3Mowd17vfrDuQapyjbXSvLiTStypURB6jdQ1V2s8PR6srCag38jgORFRzBVnWRZCbrs1Tta4d7Rrt9zJPxIMgZNUAjAheSVSZNd1KbrvDD3UVS8rFZbN0MZHDnS2tw7Pmo+ZAdIfAsHe5bYWO6PrCIcn2dtKFzBI7nL1z/FTuWRLUaERFRAitxXMOkzNvyC3PjYKRSDpYdwa4mrMPRcCKbBqrp9a504ZBE9h6drayWZ2tUY9G+gkHIdV37ilK57rxKY70705V+u5ZZQcNwP0P6LZ2hDOAw2voHHqWgUFdkjAXM8Rrt50WtB3+/Zf8FU5LtDopGvjOq5jmvYdgc0hzT4gIsdfoqPI+UG2iCKdnZlY144awrTmMO5Vi2oiIgIiICIiAiIgIiIC5Q0pWgvtbj6znu/Edb/UV1euR9I//VH63IMUVf8A2PP0In1PNkgA1FTVzmjq1r2mkLxYIyb2glxIawAVJc7cBid3NZDFky3mNsTYLQA0t1aMkBB6R+rjcOvr7MW812wwlm8nLPPKWTH6sUe0gkEEEXEHEEbCFkuZravaPt/xNc0+5xUnOnzrYbSRSSQPZMKU85CQC4jYSC27gqnMcecb941Yzx9OWmsMvVNqixGhcOP18FUzG48lTWbtO7vmqiXA8lyvWnUGTWasMbRsY0eDQFUqVZOwz2W/AKatKIiICpso2Jk8UkMgBZIxzHAgG5wINx5qpRBx9bLK+GR8Ulz4nOjcPtMdqmnCoNFJHte4rNNL+T+iypORQ9KGSCt3aYB4azHXrC6HYBTu24LCI14/Vee6qjGesMTsPx2dygKilzfdtUS00rVt1D4YXdyg6G0K5S6XJ/RnGCVzB7LvONPi9w/dWfrS2ge2UtFoirdJE14HGJxHwl9wW6VucUREVBERAREQEREBERAXI2kQ/pPd8guuVyHn+f0geyPgEHjNyRkcbZ9XWdZ7VFI+naMZ2X3doe9ZdJpAhIf+jyUkrXrtFA5oY6nVIHUYwjiXDABa7yRb3wvq1ocHAtewirXsOLSPmrsy0WMecZZbS84hjjWIHi4XuFdhXqwmGWM3ZLPy8udzwyupbL+HjOScmKEOFHSPmtDm+qJnDU9zSqvMYddv3jfgVYspeUSvdLKySpvJ1SGgAXAXXACiv+Y46zfvB8CuPxMpll45/Hb4eNxx8977plm7Tu75qfLgeRUizdp/MfNT5cDyXG9bdSWP9Wz2W/AKcpVl7DfZHwU1aUREQEREGk9P9kb09lkpe6N7TTHzbmkbP8QrU3Uuud/TFb00+wVstnkFatmLa30AfG4muz0Bj+a0eA4emPr8li9RKGrudh9fXBTeqK9Q7cTUXt+CXk9sC/w2KYw75RfSvKhB+AHeoMx0T5SbBb4XSODGua+N7nGgFWGgOztMaugrFlGGavRSxvpjquBpzouUYTRjqEgitCMa1J2LPdH+VrRPlCz6pqadctFB0bR1y4C7D3kKyjfaIi2oiIgIiICIiAiIgLkbPaF0lqYxgLnP1WtAxJdqgAcyQuuVyy81yvYP/Is38yNBdBmlbGW2PXs1kb+jkvk6ekA6LVieXyCuoWu1GagGLtt5Vgsctojf/ZMjYYnmUwufISGtc5+JcB2cLwtgR2aGWwzRWqXoLO91uMk9Nboy3KFkLBqYu1nXLFs8cozPyt0D42tjZlLWa4Akku6FlC/A9RkbqUu1kEyzZvW21m1Q61iZ0Uz7M0vc9vTztDqxRVN5o0uvAxHdYcyMW/ej+F6z1mR47Wy1wutT7PM7Llr8mc1pOtN0dWhxBq1tK38QsCzKN7Pvf9EiD3Zu07mPmp8mBUizdp3MKofgs3qOpbP2W8h8FMXiHsjkPgva0oiIgIiINfab4gcnA0rqzMOA9V4+a0AW72e/b+dKLojTJT+zX1/vIufa2cse5c9awPpml237N48aLGXUeQwD0L7vl8vcV7ju/ZVwPcDePeoMIuq8+iceQ8KV8FAAeu7D5kfkoJ8bKBzTsqMQcABs+r1uDQJA0R2khor5q+6tCH3VxpUYLUFnp1ue8bhw3U43rcGgg9S0/wDp+EiTqtrIiLoCIiAiIgIiICIiAuTMs28We32acjWELoZKbSIyx1Pcus1x5nmfOs+7b/C1Bn9uzgye9jrKWZQNiljmkfOIgJGvltMVpAa03Fg6INLuO69YplfOmW1WwTlkgsjLX5U1oaCWNc5jSS4YkthAvNKgqwPyvJIxkRjjdqs1GdUlwFAKi/G4Xqe+a0CPoWhgAYGlrSSSC4uwLiK11q09blSXKTtWS3jN8k55wROtM0tmtTgy3y26yubqtaXzsLWMnqeq3VdE7q1N/jjWZn7P77/alVktOWpXsdG7UAcGhwDadilDz6oHcr3mbjF9/wD7MyqJlmxdzVSqazYu5qpHzWb1HUzMByXpQZgFFaUREQEREGE6YnUya8etJGMSPSrQ+G340XPYP2W7No2j8/Bb403TAWBjTg+doOFaBkhJFdtwWhiGb34mt43X7MarGXUr0SSRrNZ6Pq/LiEAc6gaxlSPsY1w8W/VV4qw7X0urffcL9m9Q1meu7ZtH5cPesips7i4OJpeTyvANLrtpuW4NBDfN2k/cjwEh+a1Cymq4jCppUgm4AXkY4Lc2g5nmLQ7YZGN/CypNdvaH1RXHqtmIiLoCIiAiIgIiICIiAuO88f1rPu2/whdiLjnO4+db923+EIPFis7WWR01/SPlEUZBpqgN1pDxrVo4KptWbVoigbaHNaGFsbwQ9utqy9k6ta+rXdrN3qnsbTJZHgOcTDJrll1Ax7dUvF1bi0VvoArjlHOa0S2VkD42CNrI42uDXglsRuAcXat5aK0HoXUvrnLC4+b81/zeZnu7u/b6fpjVqvIccTjz2rJ8zv2X3x/kzLF7RsHDwqsnzOxh+9d/JmWta8VrPXq8J1mxdz+SqW4jmFTWbF3P8lUsxHMfFZvXN1M3BRUAorSiIiAiIg1Zp2tREdmjaaFzpHbdga3due5adIeRQub3k34A+NPorZOnG2VtUUZBIZFW6txcSSTspdH9Ya1LGGnUePGo8dxuv/5XPLqPQ6TEauPDaLvcfoqIEgx1OJqNgqTXkAe7eFLGpd1XjvP5bCg1MW69R1rzdQXnZ7QHGnFRE1rfN77yMQbqkDns/wCFvXQzZ9WwvdSmvO8+DWN+RWjpGaoY32QRypXG/Yuh9Gtm6PJtnBxcHP8Axuc4e4hXFpk6Ii6AiIgIiICIiAiIgLjbOr9a0bmNHuC7JXH2fMWpanN9Ulv4bvkgstitj4na8bi00I5g3EEG4hVVoy3M+GOBzupGat/015VPiraiXzrfyawyuG/T43NX7xEmqyvM/tQ/eu/kyrE1lGarqGL2pXfhhk/MIyq7N6XP5BVUQq5o+0PiqSyG4+0fkqpr6EHcQfBZvUdTooNdUA71FaUREQERWnOnKnktllmqAWtoyuGu65teFSCeAKDQ2fuURPbrQ8SavXLQKYiPzbT3gE8nqwX1NJhjjyr/AE7+5TujeSTqRu5uYeAqa3njw5KPQv8A7mLCuIrfh6W+nzXJlThzhcJgcd9+AHxpyUZNc0a54cHUHVrvFa7qgOu+ycVMdZnY+TtIuN1Td3Habt/yhA0B1zQ3VrrAYh1XNprVxoHe5FenAmS4VIBNBjU3Abq/kunskWMQwRQjCONjPwNDfkue9H2TvKbfCKXdIHO3asXXNedKd66PWsIoiItgiIgIiICIiAiIgLlvTLk0w5QmuuLy8cRL16jhVxH7pXUi1Tp5zWdNZxbIm1dAC2YAXmLEP/ccSeT3HYg5yU1zhSl2ynhevDm0XlAWQ5GfqCvqxO/FKQ2n4Q5WGOMk3K4C0Xajby437rrgONL/ABQX6wdgHeSVUOCjDDqtaNwA/NCFhHSWaNv6exWeXa6Jut7TRqvH4gVd1rDQtloFkljcb2kyx8WuoHgcnX/vrZ63FEREBao0yZZLnMskY1w3rSgH0nA6gNDW5tTu6y2TlzKbLNBJO/BjSabXH0WjiTQLmvKeUfKJXzSmXWkJcbhS+/VF+GzuCzlUqQLOLq2d/Gjjtw2baHvR0bR+xlx378Bhur7l583/AHkvHq78NvC9RY9myWTHCnO+493eVhENRg2StGNSRdq1cTs3Hw2YpanFrMKOds2gm5ra43ANHiprbzQuJY2jzXaSKtbQ+J5DevFjY+0TgNBcdYNYPWe40Ax40UVtLQjkanS2lwwAhZxJo+U/yx+ILa6tmbeSG2SzRwNv1G9Y+s9173d7iVc11iiIioIiICIiAiIgIiICg5oIIIBBuIOB4KKIOetKGjFllkNos7SLNIakejC4ns1odVh2Egi+lRdXX0uR2MvcJT+Gh7xVdhyxNe0tc0Oa4EODgCCDcQQcQtR56aJqa02Thcal0GsR/lOrf7J7jgEGjJ5vRjjLRyv/AK8fgrhkXJ+qdd49kfNXF9i6Nxa+Mte00cHg6zTuIdeCvYKlqKsFeXNUtj1NBWUT8lZQks0zJojR8bqjcdhad4IqDzXRGbWXorbA2aI8HtPaY7a1357RQrnAhXLN3L09hl6WB2Nz2HsSNHouHjQ4ivNWVXSSErEc19INktdGOPQTH0JCKOP2H4O5XHgsT0iZ79KXWWzOpEDSWQB/nKGhY1zcI6gAn0rwLu1dqt+kfOryyToYS7oYjUFor0slLnV2CmFNhJ4LCwXXUkfeaXtP7oFDiae7wOIA9AYYh4DTXA8dlL7qHFeKjhiKdd1akmg57O+7aVzqJlXY9ITf6rjiK1FBTY4e/lJdM6tGEF3WbQto1tAKuPC8d93KX0xfUMF1KBxJoy8gUINDQFxoOGAVPbLa2Mares53ifyaMABcLqIPVvtGqBFHibvzce5bL0L5tAvNqeOrFVsVfSkI67r8dUGld7juWCZk5ry2ycRtHWdQyPp1Yo63u54ho2mmypHSeS8nx2eJkMLdVkbQ1o+ZO0k1JO0laxiqpERbBERAREQEREBERAREQEREBERBYc580bLbm+ejo8CjZWdWRvDW9IcDULT2d+j602FrpQ5ssAIq9vVc2poNdh4kCoJ7lv8AUq1WdkjHRyNDmPBa5rhUEG4ghSwcqh3FTGuWe53aL5oC6SygzQ1JDA0GaNuy6lZAMKjrUIuN5WAOsw3Co+zS8bDfcssjrc1rmh1aE0J2C+l9Unc5rz1qsoKYXe6v9FKkswII6vu+Rr9dyppI5GYdZvdUe/DFQTLVlAYNvO3cKY34V4KMGUxcHXeI+sVSmZju02h34HxXo2cUo1+PrD5j8kVcnZRa4Ykca923kPBSpLawnrFzzeaEk443DHv3neqIWI7TF9dymMgaCG6xcTcGRi8k4AYk8gFB7ktT30a0bLmi4AV20uaFds1M1prXMI4G6z6gySH9XECcXHYMaNF52bSMpzP0ZWm00dO11kg4j9IfyY4dTm4V+ycVunImRoLJEIbPGGMG7tOPrOdi5x3lakVS5q5uQ2CERQipN8jz2pHesfgBsCvKItgiIgIiICIiAiIgIiICIiAiIgIiICIiArNlnJNjmvns8UjqUrqjX/GLx4q6Skm4KR5Ogwe2aP8AJ7+zDIz2ZXn3PqFbJNGFm9Ga0t74v/mtl+TqHk6mhqibRLAf+4l72MPwoqVuiKOt9qfTcI6HjfrrcHkoTybgmhq2waKbGx1Zn2iUA9nWEbTdg4tGt4ELOc3MkWGxikFlZEcda97v8x1XU4K8eTp5OmhWxyBwqDVelQNgpeLuSq43naqJiIiAiIgIiICIiAiIgIiICIiAiIgIiIC8uREEFFEQEREBQREEVAoiAiIg9hERAREQEREBERAREQf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRnQRAABXRUJQVlA4IGgRAAAQRACdASqrAKsAPk0mjkUioiESTaZgKATEtIQ5KMv9XPAburOa/1r+0cZmId8s/D/6/8yPi1/O9/vxM/0fUI/Jf59/p/tq4sKcD1C/bP7F/zfTA+3/4/ol/F/4//keeR7D/8jw5vwP+99gL+j/3L/sf4n2Wv+7/Q/lh7m/qL/ze4f/P/7R/yfXe9kf7f+zR+1B0029QmCxqJTAiguxQrWksttKkm//sWguQJxGj3AVhLZaxCqob+KJevqpK6VlChYCcDMd/S1uZiN6GWrWerAVgQj/mijbCxXDLLqOrjfggLOCdFpkLairxcJqTLDaybXdUwpANCPxfAvqsQ3MB80JVGve5Dfw9LlpU0A33egDMs8KVyLhrXnjg95lxxi4YBUZOmLEX/Pv6tMRJzUclXVNZq+g5RSrsNSDBEhP0ZX2nARyBsC4BzGylYvOro+Xi/L6pqD22i7JZrkVPQ6UoYiuqtOpoHL6LT8bzyZmo1czQiOGvLp2/8/yitEpvwq8g+Qb/gEO0HtvoEqZ7Eg1dM220DxNNM9k794jYCn+lrL48FVqdFa5TRjK8Q5mnG/Zez/ly4ByiJZVhfTZwRTlpSnRYiQQnGG0gvU45IfiqK3P6e8MqF63MquL5dmiSRaZZkINc4SLJRrabFIFsQ8mPz7hOXV15M31Q/1L1e01PLj0M4Pz8wLIiKWthmHYoWVCv1iKqSd/txn9GTJIL+TjFZKEjZaBkvLw2wmAAP7iVWA2GnfcnQY9LTCdkqsVIaEMG5ZM8FhV++2FcYTbmg1lMfwC2swRXeFt/Z3ZUs2muCuiySUo3GNBUaUZUJhtJzneT+/qCVTC7LLMxxt48JCdtNSxW61IaXcSAHcZecQXP8O+c5/IWdOpwQKecVewTk0GZ0Gr6izP9EXruOTugBICtYQtSYI8XXGEWfRYX+bTyxMu6cc9mBX9p0X8k2ASk3HcTdabU13WKuoutspE32sgewdtf/O+y0JqVip59juY63Ltf63V2UAXxefi54Vux47OUMnoDSPXhyOe5sQelOHN9Tc+37gus9xAHNUHzfGf0fyqL7JuTfP37ownt/05OOpzhBcnGywbhesT6r1MFsruHiXpUBqi6dqXHkXrVXZI6KSWAtVvLHbtSDqdz3p05fn8q0u6YFqaL4KO/7gF1lIU6tXZpxwUNWHhKgNT6jq4wYfutMGlIpPCl2ybK9h8gXJKEL3985JBCsuiH5D60W8uNJzUgas/H2+zU70Mh4CICzs6y1p0R8P7s6sONSE2XP+APDAAU3Uerl87ico0Gg2Z+FfqwQ2eA5XYGAlQBDHyhiNsIfb1GrkuyjMQ2NAX9pfjl/Hb8XNm9+/9TpRd8bvg7YPP9SNSB3JgaA/HMb13EU+B/4wB6n8bP5lCcJ5+rQ/ZgN5XNvpaVcnUiH5Eku4cZeEUQCwXBfjNo91fmGpCPI/48QxKSKCzkY7TAWEwDHq33KZgzCy0ZRgpyks24k+8OJuPnUTz6Lm1iHEE92tUN86yU2WSfFE9HQiJXXmGSbRbexBoRFMJhT1IRdbZ52xO/pjhR1w+WfPD1SW5eVRHOZ2QWTdZ0ws7J/bbG/GMJJwrReXsUvFPVMtBLKy1qCdKRFCshh9qH4DexwzvS8cq5r/XzEgRZLiWvvEWow+E9o7TW1KsI5+TVEnjVd0FCL6Hl4rFofZ9I5WckoR3o4udPVaBq6xJhakUjKNA7vyZ3veSwcJmg547GpKaQ7w0+VHTsXIT2ndqa3UM5cEd7maPOfVvF5cGwK2Eu2TKws0muX+I2m2UnQ3GdHhSO6HVHiayPvjFTlAbzccnVffW/ZuZcW6pHZBUzrc7il7usSwtulOMEl3boPZoXipUGQakPJE1V9QO+uBs2PCgI38I3CahVAeP5S76IOA7X+3Mg/j4gIRNKvlvp+mS7PytGYKsG0pJ6O9FmUlVkp//dfR9MYDd2pE9J6kEU6T0Rx7QIiyjfsEMQsKokiK63e3aNeQKPIQ3ZSPTbU+MaXT39LKmc8f5DWyq7fg/IfZCb+W6XuRl4Ab+tas1jkeAN4iiPDe5kzrYUdk66LFqq2IutuY4r5MsWCOlb66f5OAv0VaJAHOvCcpH/5lRmZwYhPrJ1opFfnrg9CrkyuCJkFQOgSjJB9j5lpUOqMsFflTmKRaijGcm5RYAkC88wbMy8eClPY9UJDi7+4JsSng1X1N+AihHLbBus87xef1IvF7icxWVRFaxvCNkRxjb7XJH7FA0IoZxr5GhWitbC6hvZ7lTDUnjp6K7hKysOybf8D4lrbSIzVirqldCne31q9tYAypbZGO61iYdxw26i0xFPYpiQKkrUUr/q6fIPr8RnPphr2eJLmP8D0kidu8R57ZVD0Pyl39nbMJtiPGk/MN0lowOUA994wSO3CSPeaf0CEP+Tyqus/s5/ji5nVJu5pzjGc0Z6yoVyTyBEgrekD0SPnldlQOvObmobtnD0AEIbr+3DIZvwo0Bk9/H/SQX9bqu7k8Yi0PPSQMm1ZNDQeCId7lwoZh8KuXa/rEWcodMWcYM+AC7Bg4XyDoBlbZzs+XUD+WTadR7C2/oH9Xaib/2BPYU+94Yziu7mBJs2+gcHEZPAaVrnOgg4Qzl+m2CFUQIDBrku1vOl1Erd+q++8ROYYBuTDOGv5ysKOp81G4nnjdQOAwcQlu5qpA3EtWlCPxdLA7Wr/OfXuAEC8BWQ7rjGkt5ofKx6owujj7C/dxWl00TE/rI6av31EeLBj4JdjCzHqoQtu4ZiA5eHHsbINpGiA94cETb927CjkDn7gGTYOQr13b50ID/7wzP+B79rUoQchUMQcPZ92GKvWpBf6cR0kW3sCrFJZbZpOvAL8k91JxXChHAmKOSkrzrCvjIk8kbCH8GIRcfEwdYdQq/iNRH1QzkhhGVf7s5BmoeUgdhds4NLjmE5Wg/dUfoKL6Alyxj9ecG0OIf3BVQ55tcpleF3NFPjFpTnM0Hg+e+GGetlTr4eaoUznDiGnemc/AgVPoGCy4LRiy+KULiPylKP8SMKgJgaPmW/2S28GMV0oteFinqI1AtEqkTUhqTUxmJdbFUrCM8NsrkueyUqvR3zUjJwNfk0SssF6jNpUattOwkvPYfvUluq9/yLQlS8LtJ9zX/M/OTKYBXR9cp6wr9U2t1vdeBcPjpqlOj219MwfXZlo+nz2v53mRaUAbY+5QQjtoEiKBGF3lKUobQl4TSf62LjXNQNHXQarZcynFHYtWVmpmf7T/di2ZYpUFijYHw5hcwt2m9mknIKxJ8flFfL0ATt2OncC9nMhgXeM31HZF75PuNTttWcq2EVEwVeXBzwn++ewwXr/BhEuttgobMyIFm+09mJCemiwX8DlSnRaQ7x6oVK4C/T/IN2YeVBp54XB7l85ciVUG3D0D9bfzuA3smXygV3KA55xmP/zyA9dGytHmw1WAzwIr5UGWsGpheleZ6bW8a4aMiZmrGM7pxr5phdWFH+Xm+HbVZmGARtDR/Jwu+0fKQSNo4arjljeEBYXnXQ7KicQrjeb3WxM97Wcq9G8iUYsUR58vPdCAKt/vrqn63fWipes1/5SVLg8Wny8NZZwxm89pK2Yc2SZEJ/lDZIqs0m7ooTahIBFmQyRYIi+jjqWtYvq9jm28lWKeJRroL+ERZCOqzqbmmsqYmhDQ8Udk7CIox2aQBTAXy/1BZbrh+Q4hZLuCIhlRhU6WEnUY+xnuedgwSk2tEJxXdMKrmLXN7W5mkW8gZX/eBiq7N2bdmKT4aUgM5tq9Wsnb9Yd3/DdEXuPq3EphmIHpWzdJLiO9n3V/ffKGJImL6sUYsnGQ/mGpBvzUvIkTJl9Hj2BpWEOm+jISAThLraN2EZ8Djnet78KeN8poNaDun1EGp/prcuRH7u7T/mFTTfZWkakOH6WrW/Rb+dpFQn1LS53CKXReuMKKbJwlY3xGy3Q2UpMgLmUdFnZuXGTT51lx5UiDlnlTOXI0+ZZgQcF4F9lqnQyKVhQLCkz5p/97sF0X5LX1c0e3m14+Q2dmBkinttZs1+Uqe6DT84eN2KZLkySrHIlgDOWquRgjMui1jCJ34nZA8pbFiZR55qgRFbl7bx2XX1MFOXenR9xit2l/1xn0OjhQyBgvC3otvA3N7LVv73OepqNE3zGA3rSRuO0JBDNdEQdZueiblCYRrk5MEd0tb4+RWZOiCMLfEOjvOz0OsOABL2oh0WEj8rRIcs8oGc/JHvL9z200JywiJEZNzxXIlwfltNtJzN/yBpYWGmnWhTwhb0amX4bbjrtvbKyTYo/4Y0jjPbOvvulNz7R79/W/o9N51y/Ogohf43W6OR3Qi38TOC/kEZ2a7M9nGk1JP42/UD5S/K9LIOsmPHKvGZR9Z5kam358C/bP4lvqRV6onfy7fXfne6GT1uJMQB9SRL4ZzThk8QIU6Yv45QU7R3p3XYbtc/0lfwRQOC7nMDVAnI4qF7d5bU+Ml8oXkSvOrVSDTJfpHGTr9YerZ4EXmjIRdDdqhmZ+lT7GaI3b4WjUPWo7yUMOWOKeAE7cU3Jljb0VppzWbfJ6H8vedo/QN8zLomf6ufVqhcGL319trJ2H9tBT3s87S8pgdwFiOGpoQ8MaE2J7AtPy3Wj0abP3MSctu0fezUZIP+WZvKVzAg+HrAp6FxbNC0YJY5FZSDUMwRottddbHAIpg8x84vQzeOW7/Du0C73LmdrQszRTuxekc/rW8G7SXzRUBJcj4JnabFJagn9QAwLY3k0r66qAjintHoDNTo0mqioJz/6ubp0bsbQUrak8S5eP8Q6PW4oOQ4LdUJ5sohUxfjQtnjYlnFg5/hSL6dcBiaE/47U3peaVOBT9+Nzz70xSms0NbOlTtuMgt7oanZFeBZL5d2681AW2uhrBxw9wow7noa8jK1CgIWeaH4s5jkQ5fRIZsANlgcGuIJh0VDFHVpl9tvPnLBUjdLqVAX5pF7+DAn0wO05GBbq8XXBc4jP375Mo8mALX3VUPaLJLxRYFrpa54OddNG+qt3N25Ryx0sVbME3OdQrC5/PLre+KM3ezg9H2z7OHgSi++17Wcm+V4s+trjBd3ZuxupfJj5w/cdahs27f/mKdTQtr+0LeNuJuIV8d5vd5cGdoX02fZUkfHPI9iEQgP7O0lwrTuhEE3Vi+FJID3RbhK9NFHIhXTGN6kKopVcKq8M1SD+4/CYLKZknaQ1GsYBLulk9oD4TElqtR2IjtmXnV6YztajsKtSW1YwI9X39i5Gv2dscfhRwtC3gsF36Y4CvIghNCQqIjre89rQMnKwUnYXfY47H/+tb45VRjSW/itn92WcafugPZF+YAB48mBGfOSHU+pLglnEC65UKXUNrPhiKSC1/r8itiplwKOdKP2sHsrsvJYrgx50VLNp+BiotXyq3BDzn6GPJ6B+GarQa+t0GbnA4UQFZy4XvswFzOKXolEpSi9NuhtplHmfRJtNN76tft4MfoUZHfmvsQt6AYjLzuwPGlc22XGhDMOFXZQCSUyJZZOt3k+uLcK13vUWT7gtpNMdUOmuHCph6MboMs3fplpvl0zqt2TzzsPMh/HEoIFKZrE5d84FBF7pBf51ktYHyuRZG4RZXdLKRMQ9v+Ax+inls7fgI8/8bUOSY1SW6eKWlyeuzeuK0atFtWGthKh6mM4FHDd+NwfiGUJIPGRGYfvx5XEQvXgMPKMv94prfTPEv0z47GJbhai+xb+oiqEX1AohcIbLg0GVFSdlAeshGekLmJoOKrX2BQLJKbMfnb9vJ2xKcGG4wRj5TJvMbHAaVZM8kF1e/qkgnC53/O4onVMNAfpcwg2qt/QB3mVNtqo1MgWJqPxoAj53mNn5IeTDQI+HxmNXPgSutq0uavnWIHgywhw4ucCbyTa803YblW0t4faS01/eruqqWPk4/clNCwBas9HYJLRemtdtABBAAAAAAA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhISEhIVFRUVFRUVGBUVFRcVFxYVFhUWFhgWFxUYHSkgGBolHxUVITEhJSktLi4uFx8zODMtNygtLisBCgoKDQ0OFxAPFSseHR0tKzUrLy0tLS0rMy8rLTcuMS83LSstLSstKzctNzErLTcuLzArNystNysrLSstLDctK//AABEIAPYAzQMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAwUGBwECBAj/xABMEAACAQMCAgYFCQMKAwgDAAABAgMABBESIQUxBgcTIkFRMmFxgZEUI0JSYnKCobGissEkMzRDU3OSs8LRdOHwFkSTtMPS0/EXJTX/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQID/8QAIBEBAQEBAAEDBQAAAAAAAAAAAAERAiESgfAxUaGx0f/aAAwDAQACEQMRAD8AvGiiigKKKKAooooCiioH0u6zrW1LRw/yiYbEKcRoftyeJ9S59eKCdk1FuNdYfDrYlWnEjjPchHaHI8Cw7qn1EiqQ6R9L7y9yJ5joP9Uncjx5FR6X4iaYhRcWzxHrnPK3tMD600m+fXGgx+3Udu+tHikg2lji/uoV/wDV11C1WlFWouHyfphxGQYa9n/C/Z/nHiuM8Xuj6V1ct964lb95q5FWlo4s0G5vJm5yyn2yOf1NKxXMw5TSj2SOP0NIT3CRjJNN0nFXbaND7TsKCRw8au0IK3dwMeHbyY/wlsH4U82PWHxKP+vWUeUsakfFNLH3mq/IuD4qPjWOyn+sp99DF18J62gcC5tiv24W1D2lGwQPYTU74L0gtboZt5lfxK+i4+8jYYe8V5Z+UTL6Sn3b0va8WwwYEqynIZSVZT5gjcGqmPWVFUx0U61JY8JdgzR8u0GBKvt8HHwPrNW3wnisNzGJYJFkQ+I8D5MOan1GiOyiiigKKKKAooooCiiigKRvLpIkaSRgiICzMxwAB4k0Xd0kSNJIwREBZmY4CqNySa8/9YfTl7+Ts49SWqHuqdjIR/WOP0Xw9vIOzp51ky3ZaG2LRW/In0ZJh9o/RQ/V5nx54EBFFbAVGgBWyigCtxQZUUoK1WlUFApCmaSv77T3V506cK4dJcSx28Iy8jYz4KObO32VGSfZgbkVNuknUv3ddlcEuAMxz4w5AAJV1HcJwTggjJ5gUNU8Xyct3j6/9qU+Unw2pTinDZreQw3ETRSLzVh4eYI2YesEjauSgV+Ut50C6bzpGig60vmrZ2jk9Ib+Y2NcNANB0tG8e4OpfzFPfRrpLNbSCW3k0ttkHdHH1XXxH5jwIpjhuCK2khz3k2PiPP8A50HpToX00gv1wPm51GXiJ8PrIfpL+Yzv4ZlFeTeF8SZGV0Yo6HKsDhlYeVX11fdPFvAIJsJcgbeCzADdk8m81942zipYnFFFFEFFFFAUlc3CRozyMFRQWZmOAoHMknkK4OM9IrW1H8onRDjIQnLt92Md4+4VSfTvpTecSbs4oZI7VTlUOxkI5PL+oXkOe5wQGnWR06a/fsYSVtUbIHIysOTuPIfRU+074AhQpyj6OXZ5Qmuheid5/ZEfGprRnFZFPa9Ebv6opUdDbryUe+gYhWwp+HQy681+I/3rWTofcrzx8KBlFdEFa3/Dpod3Ax58qQsrpWyAd/KguLqX4OAk14w7zsYUPlGuC5H3mwD/AHYqzaiPVS6nhluF8GmBH2u3kJ+OQffUuqsmfpR0atr+IxXCZxujjZ42+sjeHs5HxBrzl0y6KT8On7KXvI2THKBhZFH6MMjK+GfEEGvUtNHSro9DfW728w2O6uPSjcei6+sfmCQdjQeUsVjFKzx6XdMhtDsmRyOliuR6jik6jTFFZooNcUrDLitKxigXuI899OY5jzH+9dnDr0gqysVIIYMpwVYbggjkRXJbyVpIvZuCPRb8jQejOrrpoL1OymIFygycbCVOXaKPPzA9vI4E0ry5wa/kikSWJtMiEMjevyI8QRkEeIJr0h0b4wl3bRXCbax3l+q4OHX3EH286qU51UnTfrO1TPZ2MmkJkS3AwSTnBSHO23i+/q86eOunpW1nZ9jExE1zqQMDgpEB32BHInIUfeJHo15qNEWlZ8Xt4iWCa3Jy0jsWdj5s2ck10npoByVB7d/1qoS1GaC136cf3fwWkX6d/aj+CVVuaxmgs89PWHKRR7CP4Uk3T9/7X8zVaZrGaCyD1hOP6wn41w33WNOQdA3+sdv03/MVC5raVFR3jdVkBKMykK4GxKE7MB6qR1UDvJeTXLapnZ29fL8KjZfcKUghKsGHMVxcHkw4HvFTHidhhFkUbMM+/wAaixMuqvpcttIYJWxBOQQx5Ry4C5PkrAAE+BAPLJq7q8rWVsXGFO/5fCr26rONPPadlKczWxETE82TGY3+GVyeZQmhUzpu6RcS+TWtxcc+yhkkA8yqkge8gD3041C+uOYrwm5x9Iwr7jPHn4jI99VHmpEKjc59f8aWFK9nke6kVjZQCQQGzpPgdJwcVGmaKKKDp4fw6afWIY2kKKXZUwW0DYsEzqbGR6IPOuWumzupIZEmgcxyIcqy8wf4jwwdjmtuJ37TyvM6IjSHUwjGlS2BltOTgk7nG2SaDkG1dDjUhHw9tIUpE1A4xwNEQrYPdV1YcmRxqVh7fyII8KtTqg42IluopCdGqKRfHvOGVxjwGI0+Jqpbe5LBUOMRgqp8dLO0mD6gXbHtqRcAgkcyaATgJnHr14/Q0SlevG+MnEGXwjRUX2Dc7feLVBbHgc80M08ar2cIJYs6qTgamCKTlyF7xA5Cn7rKk1X1yfOVz7iSR+Rrh6HdIWtJQxaYoMssUWjvykx4VtYOFcIFYr3iNtxkVUPPHzbScJtnDAGKOIRqJVBWckJcRm2Azhwvb9qeetRnG1NnAuglxOA8p7CPGcsMuR5hNsD1sR76eLNIrVUu7/5y5ZI+whAzoj04jVF8CunGT6Pd8TTbxW9uLs5uH0pnIgjOFHiNZ+m3r+GOVBwdLLGwhWNbWYyyZOs6g66cbd5QFznwHrz4UyWBQSxGT+bEiF8gkaNQ1ZAG+2alLWCwlRoUZVH7virqGHeIznBwfWDUk6VWnD44oDaNIzyjWdThtCYI0sANn1funzFAxQ8DsLtlWKeON2M7DQDkgNGI1KOQM7yEBQpIGceTLx/ohcWveYdpFneSPfA+0p3Q+3b113XXC0ZEdlXvlwMbN3NHe28CWIH3TXZwrpDcWmzk3FvyKtvIi+JUn0hjwO3s50D/AMWurS8kRGkD2kcc1zMLeSRVhgiXs7QATK2ibS2ho0ABZkzyzVZ8b4WbaXsmdHOhHzGdQw6hgM4G+/v2I2NSvpRwpOwe44e57CUK08SbIArZVivgA2e74EZ5DaCUC9k+JEPrA+O1W3w6HtbM+JXPw2x+pqn4z3h7R+tXX0HTVDIvgQR+wx/00Eb6NR/PafXj86tbojD2F+ANlngYEebxkMv5GT41VlpcJDdMXOBqGAAWJOBsqqCSfYKsjg/HIJrmzkjY4jdg5ZGUIGikXvMRgbkePjUaqzqiPWzZmXhV2BzRUl/DFIkjfsq1S6tJ4VdWRwGVgVYHkVIwQfcarLyOh2rslu42sjC20sM/bRHHpRSqqSx58wyRv6xq8qV6UcDexuprVsnQe4x+nE28b+0jY+sMPCmojNRoiJBRrpTsh5Udl6qBLtKx2tL9l6qOy9VAh2tAk8q6BFSqQjxoN7JMD21cHUnwhXju55FyGeOJQeXzSszMPPPbAfhqowa9IdXVksPDbNVwdUKykjcFph2rHPiMufcBRK859YB/lk3tH7opXolaxW4a+uh3VTMC+LudXIH6eApXww+r6Jxr01VTfSBmCr2gBYhiANtyF7xHs38q1vpBLMAoj7KAKE7ILpLMO0K6kAVwjPIAwUZyT9I1UasXkka4lA7RySFHKNT9FficnzJ8znpuWUnKKQBGpYc90Qdo+SdlJBbflqx5VmWQFVAQBlDamycMMlgzAA6cAnLcsAHAwSefhccV4l4GlaMQwCVAE3kEZOp5Dk6VyykxjOcpv3MkEJLtMoqkyMzBQkI1tnIyMnYk5AGAcnPMAZWu0kSHtjbXSqpeN5GVdCziRlEbZQbABQTkbnHhvycTt0sr6H5NNJo028iyvhH0yxqzE6fR2Y+zzqSdJ5gbW/kS8gk7a4lQRfKELR2qXbSARRBss0kh15xjSM/S2BihuEc4jYOSRhQMPugcAL9IjvKcH0lwAdS56TMpjRVUZ1MxkzksGChQPIDDH1ljTR0L4VBdXPYztIoaOQp2WnJkRC4DMwOlcKx5EnAG2cjfhfEmmYq+DIdTZA0ggAscgDSNIBxyGnIJAVRQOHCb35JMJd+wdl7ZBnAwe7IFHPSTnH/Q4unfAlt5UliIMFwC8encDAUsAfFe+pB8mA8Kd/k8ksWViHZxKQzAAZ1ZdixJy7ad8D0VXOAMmuXhMHaJPbyu2lI8I8jF1ihZ0fKxZXQAyAtJqxsqhSSFYIYvMVdvV3IBG5Y4UAknyAikJNUjVu9F8/JbgLz7GbH/AIEvqP6Gg5zwrLJPIcNcCSZ9PpRW0aBjGuM4cgqucjOpvGtprxjjcpj0URiixj6qhSPjzNdvFeI9rr0n0bTu+OwnQyYIuJRjQPAn1+qLyXNYza789XnjefFtv4z+rt6rOPtPC8Ejang04PiY2zpz7CpHwqc1THUhITd3HkIBn29ouP41c9ajn39d+6teu7o321sLxB85ben9qBj3s/dOG9Q1+dUUK9dzwq6sjAFWBVgeRUjBB9xrynx/hZtbme2b+qkZATzK80Y+sqVPvqsxxCs1gVsKis1msVmgyK2FaithQbgbV6J6r7rtOGWp+qHj90cjoPyUH31538DV59StxqsJF/s7h19xjif9XNVKozp3/S5vvGleFQIsRD6g2nUuACC5IJDZ3xjbI8uVHTGPVfSL5y492d66Z7Zl0axpEgDKTjBVjgMDkA+zPqohq4vJLpKxpJgLrkZVfAibZSTyCtk74OQQA27LXFbTT2RmSSBkae2aLTKrIQkpU6wCN/Q9nOpF0H48Fe97aQLAYlk7M4wdN7bNgKANR0GXYDxY43NOnTG1WdVWSWNirzlblZhKsTT3MzxpcaSQkMidmVf6LZB2OwV/xbiLTursACsUUWBnlFGsYO/iQua4jS15avE7RyKVdThlPMH/AK8aRNUdnBeJvbTLPGFLKHADgle+jRnIBB5MfGujgHCTKe1cukKMqlkGZJJDusMC/TlbbHgvM+vPA+DdtmSTUsKsqEoNUksjejBAv05W+Cg5PgDNuESwi5WF5IYmhRyV7VUjtkGM2sMrHDXEhIEk3Md4DlUGl9chCodQGOuLShDLaxEgTxRM387csG+dnOd20+eIn0liVvnEXSAxwudRVGOwLYGrGwz6zSj3rfK7oSPGTJIzkxuDFqUse42sKRhmA9LyAJII7b2yYwFiBpfUq95clgM+jnVgEDfGKCG1dXV0oIwRkEMCPMGOQEVStXZ1b+H4v8uSgjLX/YTiGYa+yLR5yT2ts66SpLE4cDB8NxgevnuuCTA5iUyxndZEGQR9rHoMPENjHs3p4mt0kvZEkUMpZdiM/RHwPrFTu06N2kDWjRQKC08OScuca12y5OB7Kxjrz1kyzYc+qLow9pbvLKMST6TjyRc6R+ZNT6iitSY59Xboqievbhui9hnA2niwfLXEcE+0q6f4avaqy6+rTVZ28vjHcAH7rxv/ABVfhVRR4rYVgVsKjTNAorIFBkVsKxWwoNz6Jq5Oo2T5i6XykRv8SY/0flVOn0TVrdRMhzfL4BbU+8m4B/dFEqsuka54hJ99z+RpCefswzg6SFYg7elobA3YZ3xtv7CM0p0pkK30xH1m51yX1+HEuIgiGM9wPJ5Dm2oEjO+Dkeo1UMNxYSoiSPFIiSZMbtGyo+OehiMN7qOF8QeCQSR45FWVhqSRD6Uci/SQ+XsIwQDU06WX8bcNiBZDLK9mwVLgSqqwWrxPph0hrcboCrbltWMgAmA1ROl4al/Fi3R20I3Z4zJLbFFZ/k03jJbnSezl5qcKfKmPgHRw3EkQAldTA9xIsKa5NCSyR6IxvlmKKATsNfjjBY4pWUhkYqwIIZSQQQQQQRyIIB9wqZ9MePPPaWrINCy5ecqqJ2kqswBbQAWGtbiQZ8ZGOM1FktJcc472HzcIRZlVox2Z1R2cbelDA305m37SfmSSFOMkwutq1NVDxaWdzbSQtJFLCs4wpdWiDxsQCQxZO7uPpLsdyAc07xnIB88U79IJAIrFHljmmN28hMdyZvlHaJCq3JZSJITlQoTK+gdqj0fEsI6mMMx06ZCzgoAe93c4bI235VBGpVwSPIkfA1dXVx4fi/y5Kpac5Zj6z+tXT1b+H4v8uSgbU/p8n3l/dFTrhV3PJ2JmjEei/VEGGBMayJpYk7Nkb5G29QVP6fJ95f3RVm3A/oX/ABEP761Gk7oooqsioJ11JnhUp+rLAR75lX9GNTuoP10H/wDUz/ft/wDzEdB57Wt61WthUaZratWBHhW4Q4zjbzoCtlrUVutAo/oNVi9UEhU3ePFbf8jP/vVdv6BqweqX/vX3YP1molV90wP8tl++1cy2hUoHIAljb0WR2CuhAyobunkcMV9eBSvTk4vJj9smm9HwVYeBDD2g5FVDfY8Nmm19jDJLoXU2hC2lfNscq5Ksrq+eKF5S0sQDTWk+Hm7HsokafMwJY9q8er+aLMDqwwJ2FbEAEgHIycHGMjwOPCqMGn+PvxQwf2tsxX+9jublk+I1L+OmA04XshVbJlOGWEsD5EXVwQfyqWeGuOvTdNtbQws7KiKWZiAFUFmJPIADcmuzjEQEhdBhJQJUHkH3K/hbUv4ae+ri4gjujJNMsThNMLMrsO0d1QnKA4IRnwTsCQfCkvg659NsMvCIMT4kBUx63KlTnVGCdLDSccjnKnluK62s3ESzFfm2YoGyvpAElSAcqcAncDONqcekcKi74hIro4kuZVUqQcfPF3yDuMYUA7ZzlTscsdycKT44x8aMmwmrs6uPD8X+XJVJmrs6uPD8X+XJQM00gF9Ipz3sDKnSR3BvnmPDlvv4c6sSGwiiazMcaoXuIdWkY1HWDqbHpNsRk771AdI+V3B8QY8e/TVjzc7D/iIf3qjSwqKKKrIqB9dj44XIPrSwD4SB/wDTU8qvevH/APnD/iIv0egodadOE2erLkbDYe3zprWpTwu6jWFFIztk+0kn+NRoz8UhxTrwm07u42I3zWb2KNwu5Uah6Q578hXcI2xsMD1HNQRm/t+zkZRy5j2Hl/t7qRWnDjqYdc89A+Gpv+dN61QpL6B9361ZPU1bF2vAPBbb8zcf7VWtwe6PWRVudR0GBeP9bsF/wiU/66JVQ9OUJvJQASS+AAMkk7AADma4oWlg7WF0CvpCOGVWZVOHGk76cjG48Kcum07R30kiHDJIrqSMjIwwyDzHqpLi1vE0MdzBjSq4kBaTVpHYpsrkjuSOV7ndw6AaiGNVDdLb9soXIDpkpk+kNz2YGMkk8hnm2AO8xCnQi2t5rpIJ4DKJSBkTGHslXLSSHCnUAgJxtyrEsiFYwqaSA2t9RJcsTg45KoXAAHrJJyAFbeYr27whRLLC8bAgAFHBExiG2mRlx3RtgygAAqoBguihdzGCE1NoDbsEydIJ88Yru4tA6xWZZWUNA2CQQD/KJ22zz2ZT7GHnXBcW7ps6MvMd4EbjmN/aPjVjda88MkNvJHLnU7NHGJS6mErs+jOIyNk2+6c6KBi6HcLhu42jmSVjCyiPspoYSxnO0ZeYFc6kbSPEvjxFRiCyZ5OyA0tlhh+6QVzlT9rbGPE7c6lXViT8sSIrGqytGO1lQnsmXMiFWyPSwTpJwwGfAEI9JIUgurqFH7QmR9cuRmTJDELp20b7jkdXLug1mXzjr1zvE79vnt+nA0oUxhcMsWNIYFlbB1Esrc1Y5yMLkYyASab+LzhnOlQgLFtC5IXJOFGSTgeuu66ePTHoV9ekhwcEM+o6THjfcEZUjYjmc7J8Y4I0MUUzth5C6vC6lJI2VmHonmuAu+3pCtORlNXZ1ceHv/y5KpQVdnVwNs+3/LkoGwf0u59sX+mrHl52H/EQ/vCq2Lj5XOPNovyC1ZZHesP7+P8ALeo0n9FFFVkVA+uuAtwt2H0JYW9xcJ/rqeU09LeF/KrO5txzkidV+/jKH/EBQeW1qRcFCGPUeanGP0/L9KjiZ8QQfEHmD5Gum1uChOOR2IqNOzit2WkXyBp4tLojGKi8jEtmutrw6dI28z/CgU4tddpKWHIAKPYP+ZJ99cy0mKUWgxOclV99Xb1JxYtbhj43BUesLDF/Fm+FUfanU5bw5D2CvQnVRBp4bESMF3mb3dqyg+8KD76qVQPWCMXk3tA94UZpo4fxh4oZoctpkU6QCMI5IDNg+aal9WrIqRdaVvov7kY5yOR7CxxTT0T4TaTtI15dNbxoYwNEZkeR5C2FXGdPoE5INEcbWzRpryGgLlElHd1Yzg6G7wB0tzHNWHhSt1KGIIUKAka4HiVRVZycbliGY/exyArs4dxpYu0tZu9CpManSM9ybWolIGpo86sgb4dwB3tk7jg+XPyRu0jJURKxy0gFss8jZ8CMqCvnIB4UCc5kTQr4YaY5FVwHAVlDJz3GVI2zyx5DG15MOzgHZRDMLjOgkgG5nHdycD0djj6R9WOO7Z0YiZGVh3cnvA6VXADDZgFKYxtgr4YrFzxBGWIZPzcZTkf7aWQY90g+BoOm5eUqkjE6WLaMEAZTQpAVfR0jsxy5BfDFPvFOkEL2IiLESiONWzGAHdXgIfWORVY5V8z2/tqNWayTZWNSVTLMWYKiatIZzn1ICcb4jzyXbt4jwRIFSS4dpFJmiYQ93RMutVA1jcZXJOx5bcsggtg6LHdTF4oyHMTIAXE6auzDqfRyyHfyU018W4m1w4dlRcKFCoCAACT4knmTtnAGAMAAB6t7qa+MccznRrjDaR3pHyE1k4JzpI5A774yTW3T3oj8glTS5eKTVoZhhgyadaMB4jUpzt6WCAQQAi68x7au3q82jY+X/wAclUnCMso9Y/Wrm6Ivot5Gzjb47EfxoGRxm+dx9EgnYk6dAzgDmcgfnVo2N2kkvD+zZXXtfSUhl2jfbI2J8fd6xVY8Ak1XbN9oflgVbMD6ruxUD0S7n1AQyDPxI+NRqpxRRRVZFJ3MwRGdtgqlj7FGT+lKVFes/iPYcMumzgunYrjnmUiPb2BifdQeajdmR3dubu0hz5uxY/maWBpKSDYEUms2OdRp1g1tSCyjzrJnA8aBcGkLqf6K8zz9VIvcE7L8a3t4dxQOFmmkewV6Y6JWhisrSM81gjDfe0At+ZNed+C2PbTQw4z2skcZ+6zAMfcCT7q9PCqlef8Ar94WY7tJ8d2dOf248Kw+Gg+/1VCOC8ZtbeKIta9vMtyJXErfMvEkbrGmkb6g0hbceA58q9I9YfRVeI2bwbCVfnIWPJZFBwCfBWBKn258K8r33DpYneORGV0Yqykbqw5g0RzXEpZmc4yzFjjlliScereujh3Fp4P5qRlGoPp5rqHIlTtnG2fI4rlKGsaTQOXFeOSXEcUcgBMZYiTLFm141ask5OQN/IAY2pqNZxWMUHVw6/aEyFQp1xPEdWTgOMEgAgE488jflSF1cvIzM7FizM5J+s5yxxyGT5UnisYoJt0I4XFe28lqJFjuFaR1yuTKsiIoXugudJRtlVj84DjAYhx62b5Vis7IurzQqDLgsSuFAXJfvBm1OSGw2ysQC2BW+Kxig6OHJmRfbn4VanykRWYXxbJ9x/8AoVXHAYhryeXifICn7iXFO0wB6I2HsFSrDl0al0yaz55q1eryY3N5NP8AQgiEQ8i8jBjg+YEY/wAYqmbFJHKpGGLOQqqoyzE7AAV6M6CdHRY2ccJ3kOZJW+tK2M7+IACqD5KKFSGiiiqgqpOvnim1raA82ad/Yo0ID7Szn8NW3Xmjp1xj5XxC4mByit2Uf3I8qCPUTrb8VAxGkniBpU1io045bYAZrdbBwqO8bqsgJjZlIWQDGShI7wGRuNqdeEGD5RCboEwK2ZAoyWVcnRj7RAX2E049NOkjX9x2ujs40URxR7dxAc7421HxxtsB4ZoI6sQFLQLvWppe2WgnfVNw7tL9HI2gR5fxEdmo/bY/hq9Kr3qa4Xotpbgjed8L/dxZUftGT8qsKqyKiPTToJDffOqRFcAYEgGQ4HJZF+kPI8x7Nql1FBQHE+i0ltn5XasFH9dEpkix5ll3UfeArki4bw9+UifE/wAVFeiiKpnrP6tAmu8sY+7u0sCj0fEyRAeHmg9o8qKYv+zFieUq/s/xNH/YyzPJ1+Kf+6oIq+R+BrcZ+sfiai4mzdBLY8nX9n+DVr/+PYD9NKhwkccnb4mthcy/2jfGnlMS09XUP11/OuO66uIsbShPWSD+QJ/hTB8sm/tG+NYN5L/aN8aeTHNf8DlgJUEOv1lOCfaDy9m9c9tC5YAjA8fZXa7M3NiaXtEoq3epfo4ulr9wCSWjh+yq913HrJynqCt51atRXqvkVuGWunwEin7yyuG/PJ99SqqyKKKwTjc0ET6z+kPyOxkKtiWb5mLHMMwOpx91dR9uB4153jUAACpP1idJvl94XQ5gizHD5MM96T8RA/Cq+uowTUWCiiiiiiisUABk058OtHkdI0GXkZUUfaY4Hu3rhgSrR6neAa5nvHHdhykfrlYd5h91Tj8fqoVavCbBYIYoE9GNFQevAxk+s8/fXXRRVZFFFFAUUUUFN9afV0V13tknd3aaBRy8TLGPLxZR7R4iqlV69fVTfWf1aEF7yxTIOWlt1G+fGSJR8Sg9o8qLKqfVWdVIhqzmopbVRmks1nNAqDS8Db1yg1urUFv9TXHwrSWTnGsmWHJ5sB84g9yhgPU9W1XlayumVlZGKupDKw5qwOQR769AdBOl6X0WGwtwg+cQcj4don2T5eBOPImpUpqqet/pqFVuH27d5hi4cfRQj+aB+s30vIbeO3R1jdZKwh7WycNNurzDdYvMKeTSfkvt2qli3MkkkkkknJJO5JJ5n10JGRRmtc0ZqK2orXNGaDbNZRc1hRmuu3hJIABJJACqCSxJwAANyT5UHbwThclxNHBEMvI2B5KOZZvsgZJ9nnXpDgfCo7WCO3j9GNcZ8WPNmPrJJJ9tRvq46HiyiMsoBuZVGrkezTmIlPtwWI5kDmAKmVVKKKKKIKKKKAooooCiiigrfrB6ro7otcWmmK4OSyHaOY+Zx6D/AGhsfEeIo7iXD5reRop42jkXmrjB9oPJh6xkV65pr6QdHra9j7O5iWQb4PJkJ8UcbqfYaLryjms5q0Ok/U3PHl7KQTJueykISUepX2R/fp99VvxLh81u/Z3ETxNvhZFK5x9XOzD1jIqLpAGtg1J1kGg6Y3rutrojdWZTgjUrFTgjBGRvgjamoNSivQLSwaeXKks10Rz0Mqmg580ZpUweugRUCYpRI6yXVdyQKl3RfoHe3mGEfYQn+tmBBI+xH6T+G5wN+dBHLO1Z3WONC7scKijLMfUKu7q+6BLaYuLjD3BGwG6wgjcKfF/At7h4kvfRTohbWC/NKWkYYeZ8F29Wfor9kbVIKqWiiiiiCiiigKKKKAooooCiiigKKKKApG6tY5VKSIrqeauoZT7QdjWaKCIcT6reFzEkW5hbzhdowPZHkp+zUZvepCI/zN7Iv97Gkv7hSiigZ7nqUuwPm7qBz9sSR/oHpmvOrC+iJDvbbfVklP6xCsUUXTZd9EriM4Zovczn9UFbWfRK5k9Fovezj9ENFFDT/wAN6p7+XB7W2VfPXKzf4eyAPxqScO6lV53F67fZhjWP3anL5+AooomptwHoLw+0IaG3UuNxJJmVwfNWfOj8OKklFFAUUUUBRRRQFFFFB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSEhMVFRUVFRUVFRUVFRUVFRUSFRUWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0dHR0tLS0tLS0tLS0tLS0tLS0tNS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAACAAEDBAUGBwj/xAA9EAACAQIDBAcHAgQFBQAAAAAAAQIDEQQSIQUxQVEGE2FxgZGhIjJCscHR8CNSYnKC8QczkqLhFENzg8L/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EACIRAQEBAQACAgIDAQEAAAAAAAABEQIDIRIxQVETMnEiYf/aAAwDAQACEQMRAD8A9bGY4wYM2A2EwWgEKwyDQA2BaJGAwAYhMRA4zY7AkAmxriHSAEewSiEogBYFolaBcQIZRI5RLDRHNERDlHSCYwMJoydpUbpmykSQ2W5+9oguPN10PljKqj7sE/al2ckerbE2PSwtKNOlFRSXAsYXCxpq0VYnuaakIa4rjBTNgyY8mAFMMGyOTAZkc2KUwGFkM2IQhq4kGsSNA2DiBoFolsC0QRjoewgEAwxmBGKwTAqVYxV5NLvAewNijX21Rjxv3GfX6R8o273qWc2s3qN6wnZb2cjX25VlxyrsKFXHzl8Tt3s3PHU+cdvVx1KO+a8ypW6QUI75HEVKy4avvK1R8X9zX8TP8j0nA7Uo1vcmm+W5+RclE8inVktU3C3G9vU2dl/4hU6NoYmrCcf3KSc496W8z147PpZ29AZDNlrC1aVWEalOSlCcVKMlucWrpjzilwOWOvxUVBvci1RwDe8kjiUizTrplxfgejhYxLCYGcZyKuJLiAUhOQUTYwFx7gKTAuEwWwpXIpSCkyJsBmK4EpjZw0NsQLkMQXLDWCEHEFhmg7jMCNoFhyYEmAzYLYmLI+QEOLxCpwlN7ops83fTeM6uWorRbsny5XO/27s6pWozpx0cla77TiaH+FDetWv/AKV9zXNz2nxl+1mcE/ajv5c+4qylbV/8mpjejcsJRjlnKcY6Ny3pP3fDgeY9NK9d044hVZZJ5v008sUlNJP2bXvGdN631k+CPROpZrheLLjqMZtKlD/NqQjyi3r4RWr8jC2h02oxVqcJy7XanH19r0POZ15Pjbu0ImzF8n6dJ4v26zE9Naz9xU4Lsi5vzlp6GTX6QYifvVaj7pZfSNjIEYvdbnHKxWxLlvd+16v1I+ufMjGM7Wsj3H/CrpS5YRUZPWk8q/kesfqvA76O0VJbz5y6E7SdKvlvpNW8Vqj1HZm2L8TPVyuvHOz/AB3NWvcfD4vKzGoYu6JOtM63jqqeJTJVUOawmLa0NKlibllZ+LV6wdSKVOoTxmVmxYTCTIVIJzKgpTInUIpyAT5kanKdyIZNhpgNoaYFgpEgMUNUVxghBFq4yfaV41Gu4d1OQY+KZbhr8CHrOfoKVTcQ+KeyBbRA6vIaUr69o1fisZrBZypUmN1thq4t9YCqpW62xE6nMaYs4uEatOVN7pxcX2XW9dqPINuYHPQrUZaOCb7FkTjPyhKcu+ET1WNVJ2OK6UU1TxOe141EpNc/hmvH6nXxX3jl5efWvAJRabT0abTXJrRoVjV6U4HqcTOPbdPnq4uXjbN/UjKTJZlxZdmruzsDCo3nrRpJWs5Rcr35WYWN2Y6VSMJyWWeVxqR1i4NpZl9itGpoakv1cF/Fh6nj1VT6KXyOnMlmZ7Ytsv8A4k2/g6HVxqYZezCcqU3zkkmpPv180YDNro9+pGthn/3IZof+SnqvNfIxmTye86n5OPW8/o9Co4yUlvTTO/wWN1TW6STXiees6XYmIzU0uMXbwe449zef8d/H1nX+vSdmY+9tTajWucJsrE7jqcFX0OUd7GzCfEv4asY8J6F3C1C6mNqhWuaFNmRhGX+ssjUYsW1INyKUahLGqXTE7Adgc4lMaSDuM7MZagyATmJMruepKpBbMG5jkLkhgmHk3x/GLrUvsRKrxAlZtN+ZnUxaz3Gk/IglPkNKQ0xJUr237hlV8iGevgNF+BVxP13BA5+JW6zWyFUqaWIYPreI06xWlMjzAW5VeJh9MY56Kmt9OX+2Wj9cpoKpzI8RFVITg90k15o1zcus9TZjxzp9hs0addLhll/NDLCTf9Lwy8JHFo9O2phM9CtRlo4e3v0Vrwm+5Rm5f+tHmLTTs1ZrRrk1vR27+9cOP0dHS7D2bVpKtKvFwpOjOMs1lmbtltze/wAzmjWxdKPV05Sruo24twlJvLTcVwb3pqS04WNePJd/SeTb6/ahs/FOlUhUW+Mk/DivK6JcfadWcqcXklJyjdWdnq/VseFaMbWV993az5r87AZ5oRjJLRt2b1vZ8uyy8ifjD86rpXLuxKuWbjwkrePApJ2JacrTi1zRhp1+Bq2Z02AxGhx1KWqfP8ZubOxB5rMuPbzdmuywdXQu0Z2OfwuINPDVirjpcNMsuqZeGraeBOp6mnNeVQlgylCRZpyIqzGQZXiSqZoTxYMmMpEcmVkMx4shqSCjMKdiI3UHIadzXBXIm+Aou2oOfUwh29R+0BsFybCiU2xSd1ftI1N2JHuLoBPUHmwr2fmRyfPj+fcaYjkhr3Ctvv8AmpA07WGoVV2Hp6K4L3a+QKnroaiVy3SKnGniYzavCa9tc4tZZx8Yt+Z5P0hwbpV5wlq7u7tbNJScZyXY5RlJdkkeydKqGaln4wlfwej+h5v03w+aNKuuMUpa/FBKnLu0jQffNnae+P8AHDqZ1/rkizgXBNymr2V0ub3FZCJLnss1o4mmlNpbn7S7mS4mhKUKUY7lFttuyWZ6Faq81KMuMG4Pu3xJMVLNRptbo3jLsfA6+vbn79K1ShKLyyWv07CBqzNfCu9KLl8M3FN/tauRbRw6TuuJjrn8xZ1+K0sFXzxvy3+K+9zUwdWxzOyKtp5eElbx4G5SlY4eWe9/b1eC+s/TpsJW0NvBzucnhKx0Gz6vyOTtXSYeWqL0JmZhX9DRommVxMsUNdCnFlqlIqfhM3YbPxBdTgHwsaEqZHUqgOoRPUJhKoPnZGw1LS4KVxA9YIamAlVW7iKDXEieoObg+JhpL1uvMSqa9hXhKz7g3Mi4lzoXWa6lfN/yO5NoGLV7p9n1Im7kUpPRBxAaut5GpcApyXPUjk+JYhpa7wZabvAeS3vgKfoajNUcVSU4yi3pJNeLRwGPwjq4erSe+DUku99XLwUpU5vspM9DrJO9tNTkcfGMcTJP3Jpqf8tSLjNrwlI7eL7xx809a8mih2i9tnDOliKkZKzzNvldv2kuxSzLwKlV3GM6lwtVKM1K+WSsnbTPHVfP5EuBhUjKC0iquic/cava78fyxpbN2phYYbqqtJznmqPxlFqM0+atFc1vXEysLjHGKhlg7NyUmryUmo6q7t8K4HT1M9se7vp0b2PKaj1krXWkYpRUZuWXVN3dkpN6LSEjnXVdrPgWXXlJPNJvVvV6Xe923IoSeo76l+k45s+xXtJNfj4HRQndKS+Kz8znYq5sbLq3hl/a35PVeuY49zeXbx3OmvhZnQ7Pq7jmKMtxt4CpqjzvW6/B1bruNTDzMDAVde/5mtRqmmca0JExTpS0LEZF1EqkHGoVZzBVTQuizmGzFd1LgyqBVlsZTsV1MCtVCYsOqhFPrhE1cTzm27DS17yNytYHO7mTEkrtfMWYCcroBzs1beFSRlz7h36AdY2mPmv3kD5tbDqfaQxnvuC5aWC4GrS9rNclc34cCNS4fjJL7uXyE9JTJadg8nfcNUW7kNJpeKsaZoZQOY6U4f3ai55X46r6nTSly8TP25Qz0akba2zLvjqvt4nTjrOo5987HlvTmheVOuvjilJ/xaq3fmp1Jf1o5dnebVo9dhJx403mXdK1/wDfTpL+tnB3O3kmV5+PoxNTpO67r+auiENVH+d9zEarQpxV+atfz13+BSxMbSdt3DjoPCTfP6Fh4V720u/f5LU19s/SvTWly5smrabXNfn52kWVWsvF/n3Bi8u58r27Hf8ANRi66KEtTSwNUxaVW6T5pFzDVTyPdHY4Gv8Ac16FW/icjgK5t4fE2RTHRU65ZVc59YktU8TcGNadYDrSgq4SqF1MXITFKoVc4nMC6pEdRkPWAOepdTVhSEVuvEE1elIGdQildisZawaegoOy7SvGXAmWgBynyGd+ACk9wMZmVLNpcKDvvIXHUkT+v56AKS1ugZ11Gyb1emgc5aK2n3IJxV9SizKpw4fUULWd3qVlVVte0OGu/fxLGbBqpx7vPUDe9RpVFr+b9Pp6kcZ3a5fl/U0y43qMlapR/c5Qjf8Ai1p3/qyPwPN61G05KK0UmlztfTTuPT+l9P8AWhJNxvFaxy6tN77rV2sef7RnepN6u8m2298m7t2XN3fieq/9cyvJ9dWKCw742Xe/pvJY4dLff5L1+ws77u7Qa5n0vtI5r8/50XkDKp+PX5/QAa40wm7iEMRWvRfsruXyLNCRWp7l3InpI8tevn6bGDqamtSr6GBhy/RkGta6xBZoYkx4yLNGVga2Y1yeNYy6cmydVQmr6rC6wo9aE65pNXHiBliCk6hHKoNF11xGf1ohqOnvpYZyIIy3X4huZFG5a2QNR34kUp66AyqLxIqZ1O0KLKuYinV3Iguudh3LsKUn4CWJ4c91yiy6l+wjdQr9Yl3j3e/0Cpk+Acqju3w0T7im6thRq338d/LT+/oWM1blV10/sBTbSuV1PR9/9vzsDz+hqM1i9MIXhTmuEnH/AFK//wAnm2OX6k/5mendIZZsO+xp+Tt9TzLaP+ZLv+h35v8Ay83f9ldgBCQQwrBZRmA1hgh8pFatOOi7kWqSFSoPQu0cIzzPVAUSzF8jT2d0crVfdg0ub0Op2f0E41JeRZzWb5JHGUi7Qi+Cb8D0XC9FMPD4U+/U06WzqUd0V5Gvg53zPNKeHqPdCXkSLBVn8EvI9OVGC+FBZI8kX4M/zV5l/wBFVW+LK9WWXfoehbSpqz0PNOl9GS1TaJeca58mpevjzQMsRHmjjViJfuY0qz5smOnyde8TDmI4rrZc2ImJ8nqzm2wlPmQwvzI56EdVipVS5tkMqrfDUB1iN1XwIJ3VbXaLPprvKrqeaEqzuBalMjbTav8A2Kkqlt71GdVdrAvJry9QZTfw6FPrxp1NCid1Vffd8w0+Wi+5TcloE6oiVZdTeNOrZXKk58yGdVcPW5qMUe0aqdKa/hfpqedbSX6j7Uvkdniq2j7nx7GcdjdZeCO/P04d/wBlVD2DjRvuDVF7rDWULTCUS5SocErst0dm3dkm32E0Zaw/gbPRjo3WxVXLCOkfak+CXA39jdA8TWaeXKv3TVvJHrHRjYFPBUskdZPWcuMn9iU1y2z+gFvfl5aHR4Dozh6XwpvtNxsibMzmF7tKlTjHckg5SATEaZM5A5hpDIIK4swwMgIcXuOD6YULwkd/UV0cr0ooXpy8PmgsryBYWo9UtLve4r5sjrQnFpS0v3P5GttLDRtG6vbN8cY2vLtMjGTV1FKyire8pb3feu8zjvKccARMV6dKQFWYhHJ2DOb0uRMQiKTi+CRBKtz/ALiEWpLobJgx0EIhpOWt/uE2IRURyqcBSqiEECp9vmR4htJt8BCLKzaw1jFKbiv2yfpb6lGWDzNiEeif1efq+1qhsuUlpax0OyOiVar7iil/MhCM6za7LZf+HEVZ1pLtjH7nW7O2DhqC/TpRT5tXYhBNX2RSmIQKHMMxCKBuM5jCAZsG44ghswLkIQDIy9sYZTi48xCA8s6W7MUXe5y7oiEZrtz9HEIQbf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSEhMWFRUWGRgaFxgXFxkfHRoYGBgZGyIaHx8YHSggGRolGxoaITEhJikrLi4uFyEzODMtNygtLisBCgoKDg0OGxAQGi0mICUtLS81LS0tLS8rKy0tLS0vLS0tLy0tLS0tLy0tLS0tLS0tLS0tLS0tLy0tLS0tLS0tK//AABEIAN0A5AMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAABwUGAwQIAgH/xABJEAACAQIEAwYDBAcGAwYHAAABAhEAAwQSITEFBkEHEyIyUWFxgZEUI0KxFVJikqHB0TNygqLh8BZDVCQ0RFPS8WODk7LC0+L/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAAuEQACAgIBAgMGBwEBAAAAAAAAAQIRAyESMUEEE/AiUWFxgaEUMjNCkbHBkgX/2gAMAwEAAhEDEQA/AHjRRRQBRRRQBRRRQBRRRQBRRRQBRRRQBRRXlnAoD1RXjvV9a9A0B9ooooAooooAooooAor4zAakx8a8d+v6w+ooDJRXlLgOxB+Br1QBRRRQBRRRQBRRRQGPEXQis5MBQSSfQCa5KxHGcTduNda9ezOxY/ePpJmN9I2iugufOLW5GGeSjaXFUwWESw9hECf2z6Unv0dw62zd5cu3dSclsMconQZlgHpqZqaBXxxDEGSb94mdzdcnYdS1dAdl/Gbl7A2DcYuwDISxljkYqJJ1JgDek/dscMaQrX7B2zOGIn45iv8AA1eOS8Vaw2S1bYkESWzSGceYj4jXL+wfWlAcFFauBv5hW1UAKKKKAKKKKA+MYpYdonHblu8FVrmRQpYLoG82hI13yyPb3q+8c4gtlCzMFA6n/etInmHA2sVfbE3MRctq4GYMyKARoMpIMgKFmRqZI0ipoG43N5YZcjCdJBYEe4I2NM3kHij3bP3hYsGjxbnwqZ+Ek/Skw3B+HkDLjTJ28aifmykH5CrZ2fvbwR7s3nbvWJJaMsgDLlI9pBnqAQImFAddFa2Bv5lBrZqAFFFFAFFFaXGMcLFprhIEDQnafU+w3+VAK7twxZe5h7CtIVXd1B6sQFJHwVo+Jpaph2gadR+dWvmXHYS7Fy+zI2YklSS7rsqwNgIJn1JqJt8YwAGmHvECNTln8v51YE32c4lrGOTXKrhlb0OkifmB9aetppE1z5wTG4IuXtPcnKQLdwwVYkEOJMEgjRZAMn2Ib/J3GBetjX00nb2110Mj5D1qGCz0UUVACiiigCtXimOTD2bl5/LbVmPwUTA9ztW1VK7X75Xhrgfje2p+GbN/+NAJnH4+9jb1x3aAZa6c0ACdEBOwE/x95rFfU24UKuUiZmZjQmQYmf5VhwOKNpAdxmzHKYJIJjXoRH+XrFZsTxu3iWfvx3ZZsxuiGEwAc66b6arGw9Kh3YNNGLMtu0A5c5fWSen0rPeQ4UplcsCfvIYRbY6qFI1kAHxaCRoTBNeOI3kwqm1YYPdIi5eUyFESVQxp1BO423rRx2PVwcjZyUS0q5mYKiRHmRYgAKN4DNtUcnpokdvIHNFy7926klVHiVfDpGpafM0zlA0jfWKY1q5mE0kOyq4ZfXZU2O/iK/z/AIU5+HvK1dkG3RRRUAK+Ma+14vbGgEz2r8de5ilwtrxZAvhB8119Qp+Ay/vVI8P5IGGtd7fy3rwyl2ZSQhcaBMwywNpEmqlhnD8YvPcOq3sRAP7OdB/lirziOO3CoVyHQfhYbgDqRrI6GdKhq9GkF3NTH3UdAjIpAkaquoPrpr86pnH+EGwhv2YW2CA9okjKCJFxQfKo0n4yNquS4nDqe8BJbQqtwaLrBmP7QjWNhtI6CD41eR9QQRcUlxJIDFnB82uoAbWT4q1hjInNMsHZrzY9wrhn1ZVMGGMgGdTGVYGm8k9KaaGRSE7I3IvuAZBtpJGx8Qj8zT2wp8IqjKGaiiiagBSe7aeZSLq4RDpbAZ/e4/lU/BYb/GPSnDXMvaJdL8QxJYwRecazqFlRt6BRQFfdHzHP5mIBJPU9NKtFjhdruLpzJKEDIwYtcHVpGi+u4iDXnhim3bvBcjIpUtauMMrwSCSjeYwNwQR06CpJeKcOW1evuLshVD4XMYe4xV0Heg+QldSRmEHc6nZ4+HU5/M59CpYnhWRXuXGa3aGbumKy1x8oIRRImCQGfYSdDtU7yZzPesMSrS2iuBDE6jUSQufpJMa67VE8V4o+JBvXwhfuyAAoCovjIRBtbUA2yPnrJ1huXHOZyD09/Q/0rNo2i7OtOFYtrltWZcpIBI9CRtpvFbtQfLj+ADp/UA/zipyqlgor5NFAQPKvEzes22ZsxKiTIPiGh20maw9ovCzieH30USygXFA3JtkPA9yAR86XvJOLtYO6LKSttwkHOSC5ADHfUZgGB3GdhsBTgwt3MtSDlC9fa0VIjKrB129QdjodaxtiDicSbhAi42Z9FAhdW0UAAx0Apj8+clLbvMiqe6diUyjVCZOnqu/7p6ARSrvK2KTN3KrdQrlWCJ1ImZ3JXMP8VQ17gQmNtOCc6kM0swIKmSSdc3SZ+le8VjrmJe2SxZlRbYLRoqhvQbRNSr8s493k2wo0lmKwfkNf4VOcD5QAuBUmWktcjZQQCF95IA9zr6UUe7QLB2T2PHd3hQo6RoTodZB19PwmnLgkyrUHy5wW1ZULbRVEAEgatAiSdyfc+tQ/aZxZVtjBqTNweLKdQp022YxmaDpKrOhqeoKRx/m12vuz3GuJmuC2ofwqO8aDCaeXLBOsVHHmkHRVZSdmDMCD6gzpUTiOW8AL7gXbsFiUsWVe46r0BIkmPWvuM5awKiW+22B+vctPl+ZiBWHkv3m3nxWqHJ2f8cuXrbC5d7xlcgkkEwQCNviR8qupEiuf+VLdnAtauW27yc2e4rGG1lBGaB4cylSCCWVt1EPPhWMFxAQZBAIPqDWyTS2ZN29CO7QsA+E4o11QfvIvIPUxldPmZP8AjFehxgXQLiEQI099jp66azTT585ZTGWxOjJJVvSf5bfSlHiuELbIW8wR2nxWnTMSvhIdGnMR8PnV4uiLZsY7G3MoYqoV5ynIonKYJEDTUVEY7iX3bWQBmeCGgZlUBgTPRddupj0qQvcKthRmxN2BP/LRZn9ozFbfCOVxiSmQoLTCWKuGdgkCXZepkACR1IAg1o8mqRWjb7HsA/fPdyfdMkBip1yvAytMTIeRB2XWnRebJaZh+FSfoJrS4Dw5LNpLaKAqAACq9zpxGxdP2Z2bKp8WQicw1jXQnprtJPpXNOVI1xwcnRpvx67bYzmJbUzJj29hWTCcbuPcDQ2mhAnUE9fWKoSYrAWzle81xpiMw0/+munzY19sXsDedQl9xqMyBhJHUAOoYH3k/CsdnZ7HQeth5FITtd4I1vH3GA8N4LdQ+4GR103Mif8A5i00+UOJ2sosIx8I8MndR+XrHST0rPz5wFcXh/R7ZzI0bTofiNpHoPWK3jK0cc4OLo5qbHkaAgjSGZRIEfGD850qwpcQYYnvFFxmJAhixjSBBjUyNQfN7mcnE+UCwLD7lySPFOQkEgx7z/7VoHlLiOTKuUZYCkXFmPETBIzAEnaamalI5cmFS6FZ4tjWW46KRlBiMqwDEEDTpqvwFSfA8HAzHUXCBsF0Jj4An6aipbhnIZX+2IuMNcibAAa5j6f0pr9n3LSp99cUF2AgEeQaNlAOxGkn1+FTutmsY0qLtwKxlRdwY1B3k6nb3qK5q4g6XABmyqAxgmCddDG/Q1M8UxyYa0XYxOi+5P8AuflSk4yMJnFxr1xS5JZcy+JifwyrMdN4BkyZrKcux1YYfufQtX/FN30P0r5VSt3sGdkumNDpd3HyGtFZNtHR7IusHxMC66KWFkuxt5j4lUscuvrET896d/Z1zXexBe3dQykSwQhPSMxPiY+aNIzVzcl3xD4inF2a4hhfUA+YQ0EwZR2n0MG2IP7RrqPPG5zHw437Ja22S6oJRvRhqP4gfx9a5nPHr5LXe9fM3iJ03+mnwFdV4VpUTSzxnYphnZ2XE3lDEkLCHKCZgGNhUAT2K47iH0a85Hy/OJHypydmK3b2GS/ecuzZgsgCEVmUDQD3PzHpWi/YfZ6Yq7+6n9KYXLvL64SzbsoSVtqFBO59zHUmT86kEjaUW1LMQAASSegGpNIaz33FsddYMURiWuMN0tTCWx+0VAE+xPSKcHaJfKcNxRHVMvydgh/gxpd9mtsJhLtzTM91p+AVQB8pP1ok3pGeWTjHRaeH4GxhbYt2lCKPTc+5J1Y+5rDjOIaELWjfxE6mtDFYsDc16+D/AM+K3LZyqHdlc5k4VkzX7Ag/8y2PKy9SB0Yb6b69asHZ1zXdFy1hipe2VOVlUkhdWl2mFAMIBGuYelQ2P4oNQKiOUbjW7tvKYy3FAg/h762SvwKypHvWPj8EYNSj3OnHLsdHIQ66ikf2ocsWfthYJ47oTXMw1ysNgY2SnVw15WsHF+AYbFR31pWI2bZh10Yaj5GvNNTm08nFfEbYAGp1bb602eyTgdq1Yd0XL3jydSdkXqddyRVnfkfBkQVcg7g3bhB9iM2oqa4fw21YXJaRUUTooAGpk6D3oDHxbGjDYe5eO1tGaPUgaD5mB86504xjbl0vmuQoP3pB1uXT4ikjZep/1p4dprkYB/QvaB+GcH8wKR2ASwb2GS+c1ljee7LFNgzNqNQRlga66DSqPcjeDUYN+vWyLstcuZlQeHqQk/xjQxJn2rUxmOuI2W6CQRIDCDlMiVO69R6aVM8Xw+Gs2sMLV4pddVdjbxB+9DW7DSwBItkXGvIAcpi2CZO8M2FtXWQNdAJ0ztdkKFViVBdtswjX9cGTNS2ro1w4pvE5xaSXXb39Np9Sz8qcduW3VlfM9vx22b8abFXjqJIP+lPzlriRxNhbjKRm/WXKSPWD0iuaOXLSpeyC5nyXbqqR5WWFGh29TuRp70+OzK8zWHBJIW4oWTsO4smB6CST/iNVWpUVyVKNr16/oqfanhO4u20DObVwFwuYgB1hZ0O8Ea+5qhPi4lQWiAd59epE10HzRytYx4QXs4NucrIQCM0SNQQQYHTpVZbskwev3l/XrmTT/JFa2coueSM93FpaV3CvPeeJiGRFY5SJggkx/iNPvAYUIoquct9nuGwVw3bbXGfKVl2BgEgmAqjXQVb1EUYFF2t8fIvi0pEWVAAJ0N24M2vsEyn5mtG1wz7LgFxqsWxLAPbaZdyyw5QdFW2WgDaAd9TlTDDEcXvK5GjYnRhpAZUJM+idP2qhsHjWucUt4VJZLYKYX9U2AhylekQJJ9vpTGlLlJ64ptfFpOonWl+WF6dL5X3J3kRXv4bvLas4LtqNddJ+dfKjOZeKcRwF9sPwo5rXmu92ilRiGJzjUbxlketFc+bw2DNkeTJlUZPbW9fDodOPxObHFQhC0u9PfxE/wzDG5cAHTU06OyTCrcu3Lni+6hRoMpkETMzmBDiI2IPWqtwflkZxh7MlmIzXD0BMSPof3T6RT55b4JZw6ZLVtUXSYESQoWT6mANfauvoeWTWHSBWL9IW8xUMCV3jpPvtPtXninELeHtNduGFX0BJ+g/3pSqxPMSbrd31JOkn61nKVG2LFzGs/EbYKqWALTHvGv1itpWB2pPYfmJJlrvwIgwfrTL5f4pbv21e2ZBA6R0pGdk5cXBWj3zRw04nCX7A81y2wWf1olf8wFJHkrindpcsN4c57xAdDOUBljoRlBj+96V0FSP7Q+W/s+Md1B7q+3eKV3S4x8WWPVyTH7YGsxW2N1JM5px5KjMbrOcqkAkGJnoCegNRfE8DcWy91ypytEhm2zqnlKa6k6zsfrpX8PiSvgXvRHmRgG+YJA+hrQPDca3h7q5B1OZgFkmdZOpnXY17X4qDpqVIy4GpdvQJ+nuTsPrUv2f4EXcXbtMW8EXDlA8yulwZtZVSUiYMzHWtY8JKssnPcOgA8qmJJ9zE/KnDyNyzbw1tZQd6V+8eBmJJzQT6AmI9q8/xnifNkq6I0hGi2YC3C17xGLtoQHYAkwB1PyrKqgClxzNzNZe82S75YAlSIPU6/GuCUqN8ePmxg3cbbUFi2g3/ANistq4rCVII9RSeXmETrdHvV05M47ZuTaW5mYaxBGkbek6H/YqsZ2zTJg4q0TPN3DDicHfsr5mSU/voQy/5lFczccwedBEgMSyE7ZzE2jPlJIkT1EV1eDSx5t5St27zOGRLd5iWzkBATrrOgBbSehZamTrYwSW4sQd/iQJYXLQQyZRLaqBK5diJnrv1mvr4l7ngS2pzaktbQRpEgx4RHWmDiOB4a4WHeiJIZRcQjfZc8MF+BisuD4Lhw6p3yEnQZ7lsINNyE02/WP508yJp5Eb23X0/u/vX0K5wHAHwd0rFjKWgP+YzwC4EbdJPpNdEcnYI2sNaVlCvlBbwhTMRqAT4soAOvSqvyRyui3BiWIYiQhG2ugYegy6gejCmEWCKWOgAJJ9gKiG9lPETt169URnHeZcPhCFuli7CVRVJLCQu/lGp/ER19Ki/+Obf/T3vra//AGUp+0vm9ruKzDDuqZclti3m7pmzEZQRIZypEmCtVL9K4jLm7u9l9YP/AKaiTneikYwrZ0vwTmjD4piiFluAEsjqQQAQNxKncbE71NVzlyDzW6YlWFh3AGW4wbYXWRVJzAASwQCSNTuK6GwWJW4iuuxAOog6+oOx9qvFtrZnNJPQl+1Hhb2sdcZMw75e8SDGbw5Llv3mAxH7YqPtsEwVnEh8t5QEs5Y7yDC3suhIK28+kbgaTEt/nLl9MZaE6PbJZD6SNR8Dp9BSo4hwqyhVnu21uS2quodWHhIeRGoG5iRBBqsptUn2fJfOq/j3nTi3HXfT+Xw+Jv8AJmCw72CbFy5ct5zDQdSVUmZQa5iaK1MB9ypW1iQgJLEK1mCx3PmiT7UVjlw4s03km9vbN4eIz44qEeiLd2f8Iv5e/wATcW5duAGQoEKAFXYACFGwAHiY6zowbNuBFanDeGrZVUXZQFE+gEfOvfGcb3Fi7e37tGaPUgaD5muo80ovOfOKJcdJUW7Jhi2xYbj3g6R1INL9udGFwjD2ACxnMITMT18Gp+ZqA4ndF29luOQqGSx1BuESWI6mdNdq0OLPdS3bYr93J7u6uoJnbMDo2mxgiBWFK99zolka9mPYtV3nbM+TE2A0HRmIaI1Bh5jodDV75W5zR7iaqUutAI0AZj/DxHUHbNSY4fcC23u4gwjmAJ+8uuDJAOpS2J8TxsYEk6e+XMYqXzZV86XIEjQB+jAeubSfQ1HfXb+BHJepdzrC20iormjgv2uwbYYI+6MRMH8xrBBGoIB1iDDdnOMZ8PDurMCJAzSAdBmLbscpJI6zVxrdO1ZjKPF0cu8Ww/EGv3HuYj77MQ5tgLJQlJ8CjTwmsF7D459GxNyPi0fOnpxfs6tXLrXrV65ZdyxcEB1JZi2gMFdSevWo9uzRzo2MYqdDltKDHsSTH0NZPzOxqni7ld7MOEYm5lfEXVe3Y+7srlEgHKzagDchJJljlidTLgwtnKKi+A8u28Kgt2yYBJ8Rkyff/e1TYrVXWzF1eiuc58fGGRUGr3Jgfsjc/wAQPnSn4tzbakOtpLrISucKmjEljLkHxEydB666V77VOMG5i7iyQoPcgqdQiDxke5diKptuwwS4bUPbAXNA8omRK7iI3EjcTrVOPJ2zbnwjS6lmxPOd4KDdsAoYBBcEeJc40MjVDOoHUdDUzwDm62kLaRbZTU28oUgNrqB0nqNp2E1Q8jOLKauWlhohC5Mqww3yBFSZIAHQxWlirtuywuLdZ74bMzKPAc0HSQJQgnxfinygQxSxrsRDM+51LwbHrftJcTysAR/T4g6fKjjfDreIsslxA2hKzOjAGCCNRSz7NeIN3wAdVtuoKqxbNLBmKL+GJEmfQ+tNpTpVou0VnHhLQnf0D3hJRQACQQCxgj4msmF4ABcW3cQNn6EsNJAJ0PvTT/RdmSQgUnfL4Z+OWJryvCrQbPkBYbMdSPgTt8qpwZt+IXuDh2ES2gRFCquwFVXtQ5h+z2UsKfHekn2tpEk+gJIHuJq7KsVzl2o8YOIx96PKp7lfZbcg/V85+YrVHM3Zp3+aSoVLChikgXLgmJMnIDtrr7kydaw2+bsZu2Iaf2Vtx9CNahltEHKAZHSNRHtU/d5oQxmtZhmIYEqZtlcsHMpDPorZiJlYkhiKmwtHu3zMXVhdynMId0XI2U/rqD4ln0Om+himj2a8zK6tZuuAVIKliAGDmNJ38XT9qKQD3oaVJEHTWSPjprp7a1OcHuZioU5IKshABKhjlYDOI0Mx8BqDrQl01aOqqXHOXArS3xktqvegGQWHi1nSY6Dp1q58uYsXbFtwxYMqmWENt1HRvX3rdxWDt3I7xFaNpAkfA7j5VSSsnHPi7FH/AMLP6fn/AFopr/o236H95v618qnBnR58fce+G8RtYi2t2xcW5baYZTIMGD8wREVGc9ITgMTG4tk/JSGP8Aao3YhxJRhnsltVukgezKD+YamnetK6lWEqwII9QRBH0rVo5U6dnKmLxBF10W0jsSdGEzOubcQYqvjiFxLrgQoZvvLf4CAdiuxFXTmvli6r3LK6XbLFR07xNcpB9SpBj39qpz2haa3buWspRh3hicwJGmnTLOn+zjfejScaZoYjEPeuSd2MADYDoonYCp7hrN9rsoyEG2qqZI6fiGUDTrrJ03qNs2hce7bS1mLse7I0y6kxroBH5R1kWvlfl66GFve/dKqOvdg6ST7Dp0A+kuTGNN6XTuOTsysOFe4QQrhMpPWGukkfvCr+KguU+CDCWFsghoklgIknrHrAFS+KxKW1LuYUbmrxVIrklylZC8R534dYuNZvYu0lxdGUmSD6GBofatc9ofCv+ttfIk/kK5s4zie+xF69P9rduOJ3h3Zh84IrAqa7irFDrjhvEbOItrdsXFuW2mGUyDBg/MERFbVKjsP4kBh3sM2q3SQP2WVT+YamvQHOXOF7ucdcZ7a3Mt+7KvsRnLR81YH5Cq0blxFDKWRlYvIlTlcKAw/ZlSJ/aHrTQ7WuBlcULw8K31BzxOS9bESfiuX6GlXjbF2zme7mDnRCDOY9Xnqsaa75h6GqxfY1mm/aMvEuJvctpbhVkTc7tQveMxkFguh8OQwNJO07amNuBbeUoWMqJMZZVACsgZiQfRgNB88mNxSju2RlYtmzqiqpUI2ULIEiUA1069IJ2OHcKcNmJIsGCP8A4g3Ay+vr6VLpFY8m6Qwuzqwz3bGRTCZWaJhVIuEST9PnTrtbUvOzLlp7Y+13CA11fCkaqpOmvuoBj39quXMmKNrCXnBghGiDBkiBB6GTVYItlduvcSTOBuQK+qwOxmufbvMtxHaVLksWLMcxMnTU9AIHyqS5Z5juHEI8FAWRWAbKD4hqRMGATVzIeNcvcdtBcXiM4Mpdu69QVva6ddJPyrpzD3Myg0ku1ngZtY7vVAy4lc6zt3ijI66bSpU++dvShaLSexb/AGwbmQwVgCOsgxPoRO/p8K0sXiQ3i2YnUdJ9R/T3+mfEh7OcBAVO+ZQSu+h9Dro2xgEelYrmOXJmmyW0Hd/Z/jOsRQmTa0zQe5U9wPyjTUqYP952gfkfnUVasveK+BVWTGRApaeg9fjsPzufL3LV/E3Ft2AAUa211gQAgkRGYEMRE5Y1C+80QqlvuPLkT/uto9GBYf3WZmH8CKzcR534dYuNZvYu0lxdGUmSD6GBofapC3cWzbzXDlAGpNcqcZxPfYi9en+1u3HE7w7sw+cEUKHSTdovCh/46z9T/IUVzG9qigGbwLmG1aKIid0qTKZfEoczOnnUMJ+AMb06eDY0XbauCCCAdDP8etcu4y+qrbCMGZfEW3Ik+QHqPX3I9KZHZbxi6bqqrjuypMMW0k7KAco8RBltY0EVIL/zvwhHTv8AumuMkZgglmUHbT269NDsDSzxN5C5nDvlB8GcKzR/iUR8jTzQyKXt7lxmuOt1GAB8DESCNtxP0NYzjuzqwztUymW765hlw7wT4yoVWInXygkmPcUwuS+FW8vfraa3JOQOPEFP+nXqSekVGHl4o6C0rGZzEAjKI9T7xTAwtuAB6VEI27JyzpUjOgpf9o3MiW2FjMNILA7AHcn5aAdZb41eeJY1bFm5efy20Zz8FBP10rlzi+PfE3XuXDJZi7+hZunwG0egFbo5CwjjK3b1x8LhFu3HlmdiFzT6KNW06DoPY1qYvmplY27+EsmIzBWM7A6HykEEEHYgg1DcO4uLDOcxUlIVlVWIYEEebYSNY9KMbzFKuqXSQRAU2VGmXLEg+FQNABtA+NRYoufLfM9hBbWyBbRC0oAMyhzmJ08wDQfWAR1p28Gxou21YEEEA6Gf/euP7OLKMGBgj8vSnL2XcYum6qq47sqTDFtAeiAHKJYgyemg3qQNzjHDUxFo23E9R7Efl/rSf4pktnu/s93wyLmcAAkbMFYdRuNIOxIp2WzIqo84cKe5dVgjMjABsokLvrA19KynHudGGdeyxaF7IAjDmRt93bEfAyY+lWTlTh1rE3FzWboKrNwvqpJiAD0AAOmhMgxoa3b/ACwqqWUMxGwCkkn0AAq3cs4F7dkBwQxMkNuNAP5VSMbezWc1FaJexbAAApbdpfFrOIDYNiWWDmytADDykn0DgN/gjqaunOHGPseDvX/xKsJ/fchV/wAxHymkXyxYfEYm2XtPiLeaWQEjNBgux2KqekwSINdeLFLI6icLZq4fhHDFHiZ7kaEr3pAPoWtws17s8F4f3yMjPKMGNvM6NA1Gl3xA7RtV6564bYfu+8vphcsIitATLOpCjWQOo00FZuYeBWF4eq282Lyp9ycwLEMdGRl2UTOnQRXS/DReKEovcnVVS/6evXwNPLalxfuv3/0Wjkrjq3kAzeICGB3BHX4Hf5it7nbga4zDMhHiQ51PWR6RrMT84pB8t8wXsLdW5JDLIOYHxJqskaTDA/NSPWuieX8e1+wlxlZWZQSHXK3zWTl9Yk71y5ISxycZdUZrYgeJYrC2kRb9xbryQy22i4kTDSphkZYIIbZhpWh3nCt+9vTv5RPwnJ/r71e+1rl20uJGIGHAR0BuXBbJUMGYEsQMqkhkMnfKfeqP+jMH/wCZa+if0rnllp00dMMcmrizZ4di8I6OthxbeVCC6SXuFiBMkkKizLMToATGlOPkTgK4eyI3fxE9TO0zrtr8SaXvZxy/afFC73AZEDFLht+EtKAEGMpI8e1OTGYlMPZuXm8ttGdvgoJ+ulaRlyRjONMpXaNzGlthYzDwgFgdgDuT8tAOst8aWOL5ktC4121hlZ7hLNcfwhpkSAu40ra5Ywq8T4h/2tpVmZ2XNlFy4QSLc7hZgadAB1rZ7QuUlsmw9pVs51IvIGcojg+HKX1GZcxyk/gq6T6Io2kR2O5ixFpgr4XDyVVhBLaMJGqEgH2Oo619rSw/DVyr3l6Wj8JgAdBpv8aK1WKRm8sSLxt/CG45RGgu5GumUsYiNhFWvstZe/GWcuR4neM1uKpDYJmyDw5mJ0UEeCfNtGhkSd4G5mmZ2U8JuC+X7s90EgMymD4o8LTBOZTMg+X3rFGo6MGfCKz1pY693Vi5cG6IzD4hSaWOI5suBj3127m9FYoAPgkD3+dQBtZRX2lJh+a7jMBZvXs8jzMzgjro8jamNwDiLXrSM/mKqTpGsa6dNaAj+0kn9GYmP1B9M6z/AAmubbgEN4lBnXMdZge21dW8UwK37Nyw/luIyH4MCJ+Otcp8zcJuWmZWEPbY27noCpjN65es+kGgRE8TUBUKuhOXxANJJ7xxtGnhy+m1a1qyrW2JdA2ZYlvww86fHLWa5wpQf+82YMwZbp00XQ+1fF4Whn/tFrQkfj10B08PqY+IqnF11L8ld0GFwqQ+a5bnIcviPmEH0jYEfOmR2U6XlAM/dtHxm3Ee2aKW9vhWZ0RLi3M3myT4QN5kfSnB2U8JcX8/dnugkBipg+KPCZiZGsg+WrRTW2yG01pDpwZ8Ir1icSlsZrjqg2liAJ9Na+BlRCzEKqgkkmAANSSTsKSnN3O+FbGXblq6GKkIso/4VAOuX9bNUlRw/pvC/wDUWv31/rW+rAiQZB2Irnj/AI+/bT6N/wCmrv2X804Vrj4dLozNlYLlZZMZT5gAToo96A2+3S4wwNkCYbEoG9x3V46/4gtVXkrFcRRrCYdFaxlDHMFClC3iJbzB5J0nfpFMvtG4OcXw+/bUS6gXLfu1s5o/xAFf8VJDlXG4pb9gWsSbVsnZ2PdnWTby7ZmkxMdYMiuzwcoqUlLjtP8AMtfbuQ+hc+0m1gme2cdce1c0Cm2Cx7vNLQu0b6nr6xFSmJXDpgF/RWVpWbQZmI1YyWz6hgc2hjXSoDnPF4DMq8QBe4cpUqDm7sOJGYCQvm0+Mawa3OM8aw9zBZsEyWQQSrlcoSGIaRG+h6b612ub/C4U+Vcv3fp/bfp11OqNec6rp+3r9xfcevY11tPjRBy3VtyqqxVXXNIWNA2xI1ljrT/5Mc9wk/qp/wDYv8656w2HxOJa3bdrt64wOVWYsRbHiIGY6SBsY6bV0fyzhmSxbD+cIobQDxQJ0Gg1rz/GTjPNJxSSv9ul9DlRMEVrHA2v1F+grR5g4qbAULGZp36AESfoai/+LU9a5HNLRrHFKStFmSwo2FV/tIn9GYnL+oPpnWf4TW3wLjBvAhoLDeNNCTB/hUhxTAriLNyy/luoyH4MCJ+OtSneysouLpnL9nGLbtuCsyfFPUkDSsOG5ueyzFFBRhFy0wm1cX0dTvrqGGo6EV74zgruGdwy+JGa3dWBEiVnUbHoY2g1B8PxDWrgdXKepH6vUfOK0tmfFdS62uceH2ZT7CIB/GzXCJAkBiy+EGQNOkkyTRVVxXEcZbYrcd0bzEMB+LxTqNjM/OvtLZPFDG4TywtzuikG3cAJYMC7qoESRsCSo6eYkRTj4JgVtW1RQAFAAAED5DpS57D+GL9la8R4nutB9kAX881Mfj/ElwmFu3z/AMtSQPVtlX5sQPnVWSULtJ4guJujBd5cW2J7zuiASygmPQ+PIvi0AD6TlIVa8AtW9MTxFUbqqDOfhtXnFcQu3Gc5iR5rrA6sTJgfszv8feRrXiLYIQExJV1VsrZhqYYAj0n2qyjZBttwGy8jD8SV26LcGTX02pj8gYxcJcGGFy4VOWO8I8zASPTzggEaEOukgmlDiTOgyOBMOFI0UCWkgEAExJFbnC+KXFZbbXAeqMDJU/0px7g6rs3Mwml/2jctB3GIQAFoDzsRsc3ygz7NvtWzyBzmMXntuoW4kZgMxgHSSSoEkiYBOhFXTFYZLqFHEqar0JOeMby8iO9q3ifsz/iRcrLqsZtNiV6zWIcBZdW4j4QNcqqTqZOvTWq9xnD91iL1ogfd3biajXwuw/lUc1yQJE0AzOC8qW27rugotXPESpXM6gDWV2zFlHTzEiIpy8DwK2raooACgAADT5UuOw7ha/ZnvkavdaD7IAv55qbKLAowU3tK5g+z2lsoR3l2T8FXqfbNH7ppPcRxmEYq5wxxDIqWswJW3KD8Tfjc6kk6mZ+G3zxxYY3iNwNc7u3m7sPBOW1bOWYXUhmzNpr4vata3g7li1la3ntXF7xcrtlUgEC4Y6gMdx1+NSQ2bnFsKbWHtX72AwhtXv7Pu7xzMIn00jY+hgVi4RxKzaCjDobLB+9KOPGQygaE+ZCAGA9VVh74OG8Pu3bmHtlHvKSRbtywBDHMYP4RPiJHprWxznwIJcN37QpVfD3gLuBdUMBYSJYqoQJmYjY6CNVjY9uWOLLisOl5TuNfZhoR9aXHOvKaYe6byXLdq00lu9gW5mQCToJOk+oHUiq72bccuribGW4q2nY94rs4WTAOUL4c7eGM2mm9OHnbhyYjA30dQwFssAfVPF013UVHQkSCXcHeENeJGhyd9bZZGoMXAzgexMdIjSs5xli5cW39qQtsHv3kIX+6tsBAfis+hqJXlsXczWwoUMywOhUkfyqQ4By4i4q1auKhJZG+ADA9PYH6VPJ1QbsZHI3LC2Iut4rrjUkagHp7H195+NX8QiydABJrWwFiADVW7T+N9xaSyrZTclnPpbSJ+pK/GDVJOlZaEeToh+asZirtzNbu2jbJKqpgFQNz5GJGw+IOkRUP9juR/bW83pk0+sT/AAqk4/jlx5LllUxlQEqxHq5BnX9UbCtLEcUCopOGthXJIPj1A082ac09arHC5bbo3edR1FDY5ZxWKt3M1y7aCAhSoglgdj5AQOmvUjpTMw90MARXM3D+PkLmtlyqCblpmLOq/r22PnUdVPSmzyDzSIGHuGTM23kQUaIGpknMdvQ+1S4yxun0fciTWRcl1PvaNy0HcYhAAWgPOxGxzfKDPs2+1K/ivKdg3Db74WbigAp4WUAydIOgMk79TXRuJw6XUKOJU1ylxnD91iL1ogfd3biajXwuw/lV7OcmcRyiHicbb0UDy9B8DRVYF2RRU2DrbhvDLOHRbdm2ttF8qqAAOuw96ovbfi2XB2rY/Hd19wiMQP3sp+VMaqF2zcON3ArcH/JuKx/usCh/iyn5VUCMtAKpAILEEHMs+YSSv7SmY+tRuIeBGRvEEZSHOfJ4vEFBynNpodRl6TNZsRccfdQSWhEgKdyCCJ8rnL5q88O4RdxJ7xbYgHKxRkSH7pyqievgljG53E1qqXrb9fcGmtwZYFxiStwALoMkBtYaSSQQVIjQUXMQwAT7yJtmGAUEwcrRqT4SYqU4rwJrFqyHJXviWZma3lzqg2ZQWC+NhG21RGFtM7AeIyB5mkwpEEewGlW00/XyIG/2ZY11vBJOVh4l6Fskg/EZCP8AFTqsNKikp2TYTvLrvmjuoXLlbWRAYEiCBFwQJ+VOuwsAViySF4jyZw++7XbuEtM7asxXUn1MbmtRuzvhZ/8ABWfkgH5VaaKgGnw3hdnDotuzbW2i+VVAAGs7D3rbNfaKA5Y4KbGY/alvnwD+zZAZ0mc6n3n5VL8D5huYK5dbDSFuSMl0Bg1v8OYCAXHqNNTpBra524R9k4jd+7Fxc3fIjTle3dJJXSDAfMIB/CPWo84y5irbXr91stuLVnKg8TuGPdaDfwjf6irFX1MXDOKLZcljcth7bq5tEBjmI8PQqsCdIOo6VrYy5wyQTbxkRHgayvw1dWEb6COlYbiKpw9y4e7tXjdy3ASxy2nKElQNCGAHzmjFYi9bc4EgXrGr21uLGlxSyXwUhgctzMNSPERFVLUkjZ5bZc47rOFLvkDkFvK2WSoAJnLsBrXTyajWkJ2Y8CuPjLb93Ni1mBZlBUuI0BkQ4OWDBHm9KfiCBUsEPiuVsI7FjYQMdyoifjESa9YPlrDWjmS2ob1gT9Tr1P1qYoqAeUWBFJXtXum5jmTogtKdY8IU3T9S1Oykv2w8PZcYLij+0RXX3a14HH7hT61V9jTH3+QrcTiAbsPtJza7AakyPQA1hsYhntG2xOQMWVe8EEwSE/vEkfUneo7FXzbuEwrA7ZhIIPX41hfHzP3VoTOyevprpW8MnDsZNWbmHvmziVKGQH01BlZgg9DIkUyeU37l1YqrG09wJnGbwhpB16xOtLPhNrvbodwFt2oZyBAhToP7zHSmfyNhu8xNuzcBly7vlIEFjMeLcQNQBO9Vzfpr4vX+/wCfwa4PzP5D7snSoXiPJnD77tdu4S0ztqzFdSfUxuambA0rLVDNlWPZ5wv/AKOz8kA/KvtWiigCtfiGDS9auWbglLisjD1VgQf4GtiigOZOPcrEXGw105bttiFcjRwD1HuNY99N6gxwnG4ZiLaXVDESbMwwEiZE5TDNr0mn92j8FvFfteFS01y2pLrdEhlykGRs4y/hMaohB0gpxP0ohOW6qySY8wEnYZs0AelXUqIIkcPx2JOW6t8oshBc2XVR4i0BhlG46j41J8I5aKv3Vs57rkAudlBMf0r1c/Slw+K6D7eUH28IEz6U0uz7hN5h9pxKWldwMq2xAVQIWB+ERmMambja7Co5diSy8p8tWMJbyWUygnMxkks0AZiT1MVZQK8WLcCslVAUUUUAUUUUBTO0vl77TZW8kC7ZmCTHhboT6TG+kTSf4iuDQ2mu3e6uEBw9k+JG0MOvmS4D0IkEb10k6ggggEHQg7EHpSS5y5UwlrGXFFoW0chlJzBZZQSATpqwcx06RU2CnYixw827SPj2ZLOfIoQAgXGzsJCzq2us+0VKcLwFi6ltcKyQ7FSMw7wKpPibqoLQo6kusDrWc8tYT9a39f8AWrj2Zcu4cM99bMN4QjENoIklc3rmGv8ArSyC88rcIXDWEtKAAo/idSfqTU1XlFgRXqoJCiiigCq1z7wD7Xhxl0u2mzoflBX4EH6gVZaKhq1RMXTs514lycHljbgkkGQ2QsN/Lqp+Gm3ziBySkeVd9u+0+uTNHtTZ574CQ+YXrgW4cwQTlDrAnRhrBABiYETVUOCxG3eXv33/ADzzVY5Zw1r6pP8As6vKhP2iLwfK7BUCp5W0CqRbDnY66u0dT701+RuWxhrPiAN1yWZiNRIAAB6CB/E1Bck8EOfMb1wqhk2zOUu0idWOsAgmJgxOtMeylLlN8pMpkqK4xMqiK+0UVc5wooooAooooDFirAuIyHZlKn4ERVFbkO9bkWr6OpMjvEIYE76qYOuuw3q/0UAvG5HxDwHu21UEE5EOYxqB4jA1j1q5cJ4d3KKgMhVC6+wifjUjRQBRRRQBRRRQBRRRQBWO/ZVxldQwPQiR/GslFARn6Bw//lJ+6v8ASt2zhlXas1FAFFFFAFFFFAFFFFAR/GeEpiUCuWWDIKkSD8weoH0rTPBTESvxy/8A9VOUVDimXjOS6ERwfg4w65VLHWSWiZ+QFSwr7RU0Vbb6hRRRQgKKKKA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUQEhIVFhUVFhcXFRUWFhUVFRcXFRcXFhYSFRYYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNyguLisBCgoKDg0OGxAQGi0lHyYwLTE3Ly4tNjUvLzIzMC4uMDE4NzIwLSs1NTIvNTUtLS01LTItLS83LS0tLS0tLS0rLf/AABEIAQ4AuwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQQFBgcDAgj/xABMEAABAwEEBAgJCQYFBAMAAAABAAIDEQQFEiEGEzFRBxRBYXGBkaEiMlKSscHR4fAVI0JiY3KCssIkQ1NzovElM6PS4hY1ZLMINIT/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAAsEQEAAgIBAwIDCAMAAAAAAAAAAQIDERIEITFBUQUTwTJhcYKRsdHwIiOB/9oADAMBAAIRAxEAPwDcUIQgEIQgEIQgY35eHFrPNaKYtVG54bWmItFQ2vJU0HWsjtuntvl/eiMH6MTAP6nVds51oXCZLhu6b6xib500YPdVYqT8f3QSEt72h2brRM7plefSVy4/L/Fk893tTIyfHu2lIZPj2nk66oHxt8v8WTz3e1HH5f4snnu9qYaz439G/qRj+N3VyIH/AB+X+LJ57val4/L/ABZPPd7VH6z+/J28qUSf2oa9m3vQSTLznGyeUdEsg9BUjY9L7dFTDaXuGWT6SV5iXgnsKrok+PfsHWveP49qDatAtI5LbC90rWh8b8JLAQ1wLQQ6hJocyNvIrOs54HneDaRzxHtDx6loyAQhCAQhCAQhCAQhCAQhCAQhVjSvTezWE6t2KSYiuqZSoB2Oe45MHeeQFA04V5KWEN8qaMdmJ/6VjTvjl7j6Sp/SzT6S3BsDomRtD9Y0BznnwWvY4OeQAf8ANbsA2Haqw+f3e4IPbnfGZHtXku+K/A7VydLnSufTn1rmZhzU7kHfF7/fv6kYvd7hydab6745ercjXe/370DnH8VFe3YUuLs66dm1NdcN/s7F6E2fP059qB2HfG0+ztXtp7u7/amgmHV8bV0E2zuzy6kGp8DRztfRB6Z+rsWmL5+0X0yksD36tjJNaG4g8uBpEXZAjYayDMg7Nm7UNFeEOzWx4hc10MzvFa4hzHncyQUqeYhpPICguKEIQCEIQCEIQCEIQCEIQC+ab5tuvtE09a6yV7wfqlxwDqZhHQAtq4TdIW2OxP8ACpJNWKIctXDw3jdhbU134RyrBY6kZNNN9KDqKCMvu0YHRneHD8p9SZfKB39HMnl9WCSUtw0GGtanfTdXco75Dl8pna7/AGoOhtx39e9HHT7uTpXn5FdyyN6gUvyN9r/T70Bxw7+vd0I47z+/pR8j/a/0/wDJJ8kfa/0/8kC8dPu5Ajjp39fKk+SPtf6f+SPkj7X+n3oPXHj7t6OPnf0cy8fI5/iN7CvHyPJ5bO13+1BIXRai+U1NaMPeR7FM6wto5po5pDmnc5pq13SCAepQV0WF8Ty5xaQRTI843hSzpelB9R3fa2zRRzN8WRjXt6HtDh3FOFn3A3pC20WQ2Uu+csxpTlMTiTG4cwzZ+Eb1oKAQhCAQhCAQhCATO9byjs8ZlldRo2b3Hka0cpPxknUjw0FziAACSTkABmSVjukt+m1zGSpEbaiJpyo3yiPKdtPUORAy0itfHLRxmYVIGGJhzbEzyWjZiJzLtpO4AAVq876gYS0vBd5IzPXTZ1qF0h0hdK4xQkhgyLxtd0Hkb6VANjAQTc19MJyae4etNn3t9U9oUfRCBy69D5Hf7l4N4u8jv9y4EoQduPu8kdp9iTj7vJHb7lxTmOJpic+mYL6Gp5HWYDLZslf28woHjjzvJ7/cjj58jv8AcuCRA4+UPqntXttv+qe5M0IJSOYn6Lu72p1DaBsNR0inpUNBansNWnq2jsVpuK2w2j5qRoa87Nzujn5kHS5LyksdoZaoDR7No+i9p8aN45Wmg6KAjMBfQ+i2kcNvhE0RoRQSRnxo3eS7m3HYV8/Xpcj4BrG1dFyjaW843jm7E70VvmSxWhtoiNWmge2uUkZ2t9YPIac4QfR6FxsVqZLGyVhq17Q5p5iKhdkAhCEAhCEFM4VL31FjEYPhTvEf4KFz+ohob+NYnpFeB1erac5PB6G08L2da0Dh0nOusbK5Bkzqc7nRAH+k9pWVW12KVvM0959yCGa2mSVLJtPSV5QCQrpFE5xo1pcdwBPoT43FasGsFnkLd7W4u5tT3JETPgmYjzKNSJUiJ0ResZphqabq5Z4ScvwN80bkiRDREiVIhoJEqRDRENcQQQaEZgjaDvQvJQ017Qi9hbIC2ShezwXjfXY/r9IUcbs1U0lnPi+PH91xo5o6D+YKt8GttMdtayuUrXMI5wMTfQe1aDpLGBPZ38rtZH1FuP0sCIXPgrtxMMlmcc4nVb919TQfiDj+JXlZHolfcNjtJknfgjfGWVo5wxYmFtcINBQOzOQWtgoFQhCAQhCDFOHGT9tgbugr50jh+lZpJnL0MHeXexaBw1vrebBuskXfLP7lRI21kd90etBCPOZ6V3u+zax9CcLQC57tzRtKJWRuBcx2Ejax/LTaWPAofukA9K72LKz2g8vzQruBfn27FMRtEzpJXE02y1QWGN+oilkDMTfGpmS4nlcQKAbyK1T92j1rj+UZrPanaq7piwuL3AyUeWmjR4JIABIORrRVe6y/XRGOIyvbI1zYg0vxlhD8BY3NwIaagclVO26+XPs88EdlkhfabS+aUR4xAYYRi1DYqUGreMTjTKmdAaCNpmIntIEzbxY4PaBbGNLmvaA3jDWjNjwMsdNh9ABCq4KfXHKW2mBzdutYOpzg13cSuV6ACeYDYJZAOgPdRXt3ryUpHC01jw4wxOecLRUqwXbojJKKhziRtDIy8DdU1HPyJhouWcZjD6YSQ2h5cTminevqSxiJoMUOrAjNCyPCAw7aFrfFK0x/LrXlaNz+KuT5lp1Wdf8AHyvf91Gyy6lxJOAOzbhIqXClKnye9RhKv/DeB8pnngjr50iqGj8OO0RilaEupvLGlwHaAs9Ra+q9tr03FO87l3stxPIDpDgB5D43XuTn/p1h8WU1/CfQvoW6bks9hhMkgYHNbimnfTKgq6jj4rBuG7PNerrvmwXmx4hfFaGtID2lhq2uwlsjQQDQ0cByZFdEZOnr24b+/bCaZ7d+Wvu0+Yryu18JGLNp2OGw8x3FMSte4Q9G2QCeNtSzVGWOtSRQE4a8tHMI6KVWQFV6nFWkxNPExtbp8trxMW8xOkropJhttnd9q0duXrWuaVDOzndK7vieFkVwtjbNBI9/71lI2eNk8Cr3HJg7Sd3Ktg0qHgwndM3vBHrXM3VjSf8Ayq847zT1retHZsdks8nlQRO85jT61g2lH+Selv5mrcNCnVu+xn/xoe6NoQTSEIQCEIQYJwy/90//ADxfml9qptmHhPP1R6FbuF81vV/NFEO4n1qp2PbL0epBWypG5ZmYnxSGjJm4C7yXA1Y7qPqUaUKa24ztExuNLDo8wWe0yMtGBuKzzxgSOcyKQvYWtY+QULWHygRmACRUqxX/AH9ZpYZ4I5xrJZbZIJtmJusjkFldVuUcuF1HZVMcdaAuVLgvV4aI3tbKwbGvFSPuu2jvXoXlEM22WMHkLnOkHmlX40nxKN29YdrliEQ45IPBZXVA7ZHkEADmGefsKiHvJJJNSSSTvJzJ7V2tttfK7FI6pGwbABuA5Pcm6ra0eI8LVrO9z5FVunAJQWKbYKTfpCwpXzQW2TizuhjfhY+Ql1MjUADatMGK2S01r7fWGefJXHXnb0ceGOcPvSQtcCBFGKjmxGneoHQ19LbCfrU7RROdPLNq7S0b4Wu7XSCvcmOijgLXCTsxhWivHPFfaYMd+eOLR6w3/hicRdFqpy6kdRtEVQs04A5KW+epo3ibyd3gzQUJ6AT2lXbhfvyN922iGOrqmKrx4owzxmleU5cix7Qm/XWSaTCwP4xC6zGpIwiV8ZLxTaQGEAZbeahxiszMR7r7ju0rhU0ghkLmRHGdQ9hI2AnFy9axNXO8oTheQMgxxPN4JVLXb12L5XCm96hnjiu5tX1drG6kjDuew/1BbhpYfmoz9vD3yNCwqM5g849K3PSnOzsP20B/1GLgaq5pMPmHdXpBW1aAn/DrJ/JZ3BYzf8LnxFjGue45BrWlzidwaMyehbToRZXxWCyxyNLXthZiaci0kVwkchFdiCcQhCAQhCD5+4XD/isvNHF+SvrVUsf734+iFaeFn/us33Iv/W1Vax/vfj6IQVtSujUMD5HifAaRExNlkMUT5ccYwvkDmUGrMrhV7AS1oxCqiU4u+wSTuLIm4iGlxza1rWilXOe8hrRUgVJGZA5UFltV03fgtIFpibKQHWUNe7A0xxRySRuOORnhudJGMUho6LIuDgpO1WO5DI4BzWxh9qZiZJIHBrA0QSBr5pNcTUua5uFrsJBaDkKX8kz1kBicDFIyKXFRurkkLmsY8uIw1LHCpyy2pbxueeBzGSsDXSULAJIn1BDSD4DjQEPaQTSoNQoStcNgujFENY1zQbM2RzpXs1hE9qjtMtMXgNcyOB4H0WvbynOv6QWexsZA6ySF+sErpA4nWMGJurilbsDmjEMTaB1MXLQcrtuZ0zJJRiLI6Y5Gt8BtSGipO2pc3LbmmNvsjonYTmCKgjYR6jzK3GdbVi0b0bq36IWkMjqSfGdkqjHG5xwtBJ3BWG7Lklwj5xrTU+DSuW+tdu3s2rs6HnGTlWNsOrnHNNXnQ09tmttLHboGN7Hye1R+i87GWqJ0jQ5oLqhwBFcJw1ByPhUSaR2R8Uoa9wcdWDUZZYnCncVFVpmscttZptMeq+OtZxcaz215ajpRfDbVZ3wl9C4DDuBaQ5oy5KtAVCuyyPZK17m0DCHbQakbAKc9E4slhneA5xwg7K7Tz05OtOjdEhGUv9PvXfbHOaYvFJ7OHHNcETTl5TVsvKMWabEBidG8DpLSB3lZ4n952eWM4ZNh2EGoNPjYo8rj6vLa9/8AKNad+L7EAlbrpGf2Vh+vB+diwly3S/z+yM+9Z/zsXK0dNHT+22X+b+ly2VYvcB/brL/NHoK2hAIQhAIQhB8+cLQ/xWb7kX5AqtYv3vx9EK2cL3/dZP5UX5VVLFtl+PohBWFLaNWxkcj8cjWNfEWfORa6F9Xxu1czAC7AQwmrRiDmsIpSqiChBdbTf1g1c1mjE5jn404ve91GOcWGzNcwtc+QNNlhIdiq0TOBxGqrl52tkkzHtPg8Xs0RJFKOjskUDz0B7XdIGSY2azSSHDGx73bcLGueab6NBKez6PWxgxOsswG/A406aVopiJ8wibVjtMvV1WsQC0tkq1z4BG0Ur4XGLPLmRyYI3muzZvXG9rUH4BytDq/iw5dyZttDgKB7qDYKmg6N3UuZKcu2k8dztLaLNabTGH+KSAc6bXNFK9a+p7BYIYG6qGNkYG1rQAeYu5Secr5Ca4gggkEGoIyII2EHkK3jgEkLrHO5xJcZyXOJqSS0VJJzJ51eLTNOPt3/AGVmsRbl/fVRuHJtL0PPBGT2vHqVMuKAPtEbSKipcRtrgaXUpy5gK2cNUodej6EGkUYy/Ead6r2hjqW2D71O0UU44/2VifeCPsvom5NFLNZo9ZOyN8gbikklDS1lBV2HFk1oz8Lbyk7nFmiu23MdqhZp2tNHGPAS0n6zPCadueSjOGKQtui10JFdUMssjPECOgio6Cs0/wDj9MRb521o02RziOSrZoQCegPd2lRbLeZ5TPdEY6xGog64QdGGwCeKpLRGZoidtACc+cFrm846VkpW5cLV9QuJYx2N3F3sNNgJx7T1rDCujqr860tPnTHpqTSbx6b7EcVud+n9jZ96z/nYsLctyv8A/wDpx/es/wCdi43S9aPn9vso+0/SVtawCG9hZbRDaXNLhE7EWggE5EUBOXKtzui8GWmCO0MqGysa8A7RiFaHnGxA8QhCAQhCDAuGNtL0PPBEe949SqFh8aToHoVz4aG0vQc9liP+pOP0qmWI+G8cw9aCsP2npT+4rt4xKIy7AwAvkf5EbfGdn1DrryLjPYy0FzyGVqWNPjvzNKNGYb9Y0G6qcXbKW2a1EbXCJp+6X5jrGStSIme6mSZivZb9F2y3jaRd13yCxwBjnueG1lc1mEaxxBDi8lzcsQyJqTSiso4KbyhbPKL0NY6mEfOETBrcXzmJ9I91CH7Fkty220Qzxy2UvE7XDV4AXOLjlhDR4wOwtoagrQdMOES8rfZDZ2WWWFrGltvexkhFRXFGTT5mOgqQ41zIJoDiTeZIxUiNaVoSsvON1WNbbWNxhzRhFoaNrXDZjAp/bZU6qQuCYstMDm7dawdTnBrh2Ehcr3aBaJgNglkA6A91FNu9eSKRwtNY8efwNFoHB/elojszoInYWySFziNuQpSqz5XbQklsWKuWJwoF1fD8dcmXjaN9mfWWtXFunlGae2cstLa5l0TXEnMmrnipPLsTHRI/tkH3x6VKcI0+O0sO6Bg7HyKL0SLOORaxuJtXVBJAJDXFtaZ+MBlyqlo11P5vqYp49PE29m48Md8ROu20wNOJxMVcObW0njPhHYNixzQG/uJzS+AXm0Wd1mFHYcJlfGdZWmdAw5b6bFd9K7TxmzPgaWioBa0ANFWuDgMtlSKdazi6rvlbMxzmEBjg415swB10Wl+jvjvWNb3/ACpg6uuWlreNJq848nkZjC4nm8EqmLS7bIwWadzm0JieB0lpA71mi1+KWib117N8VptXczsjluOkmVkjH17P+dqxmGwGRtY3BzvpR5h4zObR9MU8nPm5VsulBpZ4x9pF3EH1LzGiq3+/wT0etbzwej/DbJ/Jb35r5+vt9Qer0hfQmgbaXdZP5EZ7Wg+tBPIQhAIQhBh3DfHS8Inb7MwebLL/ALlQ7H/mu+639S0jhzj/AGmyu3xPHmvaf1LN4MpelvoPvQVu1+O+u3EU9uKVmJ8MhoyZuDF5Lgasd299E0vEUlePrFNlNbcZ2i0bjSwaOt4tbWtnIZRszSXOLWO1kEsbQXgVax7nBpeKFocTUEVE/et42eVtqa6WzmIBzg3HPrhMLFFFELO4ENtEYmj1eJzScLXOJ8MFVKG93YRHKxsrBsD/ABh91+0JG3hAM22RtfryPkb5pGavxpPi36o3b1g4uGER/tkgoyOuAfxJCCGhu8DPPeOY0h5ZC4lztriSekmpK72+3yTGr3VpsAya0bgPgpqovaNca+E1rO+U+Qp+472ZFGGudTM5eFynmCr6RX6fPbBfnXytasW7SmdKLeyeVr2OqBEGk0IzDnmmYG8KIjeWkOBoQQQdxGYK8pKqmTJN7zefMkRGtLFFfocBiOF3LtpXeObpXuS+frt6QQe5VlJVdUfEMutOaejx7SV5Xo6QYASW8vPy0A3KMKVeSuS+S153ZvWkUjUOln8dv3h6Vs+lkvzUQ+0Hc1xWM2T/ADGfeb6QtU0mtFWxD65P9DvaqpV69HV7R6V9I6HNpYLGP/Gg/wDU1fO93XNPbpeL2Zoc+mM1c1oDQQ0vJJ2AubkKnPYvpmw2cRxsiGxjGsH4QB6kHdCEIBCEIM34Z7sxx2acD/Le+M9EoDqnmrEB1rH7VFge127I9B99O1fTF/XY202eSB2WNuR8lwzY7qcAVgd7Xc4F0b20e0lrhuIyI96Cj6QQUfj5HekKKVpniDgYpNvIfWFXbXZHRnPZyHkQcKpKpEICqKpEiBapKpE+is7TA59PCGOhqeR1nAy2bJH9vMEDElJVCRAVRVIhAVSIQgc3bHiljaOV7fTUq539bKuaPJB7T7h3qvaNwYSZ3bGghvOTtPV613tErnuo0FznEBrQKucSaBoHKSTSiDVuAGxF01qtRGTGMiad5e7G8dQZH5wW1KtcHejfyfYY7O6msNZJiOWV9MQryhoDWg7mhWVAIQhAIQhAKnadaKcYBtEI+eaPCb/FaOT74Gw8uzdS4oQfM16WMOrlmOogjI9BUBO1wyNHDn2+9bHwt6NBg+UIRQEhtoaNlTkyam8mjTvq3nKyWcE86CFlsgP0COgj2rg6xdPYp2KxveHvAaGsw43PliiAx4sIrI9uInA7IVPgnco/jUZ+mO1BHGyO3HzSuZsrtx7CpbXs8tvaEolb5bfOCCHNndu7ilAkDcNXYc8s6Z4ScvwN80blMaxvlDtCA8eUO0IIPUO3HsKNQ7yXdhU4Xjyh2heTK3y29oQQvF3eS7zSlFkf5JUxr2eW3zgk4wzy29qCKFhk8nvHtXeC7Ttectw2qYZATGJm4SwuwVD4y4Oo4gOYHY2VDXULgAaGlUNs9dpogbvkoABkB2BbNwQ8Hhiw3ja20kIrZ4nDOMH988H6ZGwfRBqczRsPwQ6Gx2iU2yVuKKBwwB2x82TgSNhDAQaby3cQt0QCEIQCEIQCEIQCEIQNL2sLbRDJA/xZGOYebECKjnG3qXzDNZ3NJa4Uc0kOG4g0I7V9UrFOEHQ6aGeW0RsL4ZHOkxNFcBeS5wcB4oqTQ7KEIMnv0HwW1NCakVyJbsJHKRid5x3qMbZ1YL2s9XMNMgHZ8+VPX2JsLNze9BFcXRxdSvF+b3I4vze9BFcXScXUtxc7upJqP7oIvi6OLqV4ud3VTNGo/ugieLoNnUtxc7vf0I4vze7pQNLnaQ8tqaUrTkqNhpvzPaVM4E1sNmIkrTLCRXpIp6D2K76JaGT22RvgObDUY5CKNw8oafpO5KDfmg2bQS6+LWCzw0o7Vh7/AL8nzj+xziOgBTyAEIBCEIBCEIBCEiBUJKoqgVCSqKoMy4brvibZI5mRsa82lmJ7WgOcNVNk4gVIz5VjjCtz4amVu6vkzRHtxN/UsMjQdWj4+PYvQCRg9S6AfHWg8YUuH4+Ml6olog8Yfj4zSUXSiSiDkR8dfcubyuxC4PQaTwG2KOWW2GSNj8DbMWYmtdhJNoq5tRkcuRbQAsi4BI6G2u38Xb5uvP6lrlUCoSVRVAqElUIFQhCDxVIXLySvBKD2XpNYuLiuTigcmVeTOmTzzptK870EHwtvxXXNzPgP+vG39SwxgW5aSQ6+zy2cuoJG0rStCCHNNOXMDJZFbrkkicRVrudpP6gEDBq9pdS4chS4DuQIhKIydgPYvWod5LuwoPBSVXsxO3HsK84DuQeCuLwnOpduK6Q3a95pkOcnLuqUGlcB5wxWo75Ix2MJ/UFponCzXQSwmywuZjxGR+MkAgDwWtDRXM+LWuW3YrjDITyoJsTJRIo1hO9d2FA9D16Dk1aV0BQdwUtVyBXqqBCF4IXeiTCgauauT2lPsCQxoIt8ZTaSzuKnNWkMQQVmW7yVHWi4A7a1XXUhGoCDPJdFGn6KbO0Qb5K0vi4ScWCDMjojzJP+kunvWncWCOLBBmQ0R5ivbdEB5K0riwRxYIM8j0TaPop7Bo40fRHYrvxcI1AQVmG7KbAnkdlIU3qQvQiCCMZEV3awp7qgl1aBs1q6ALtgShqDmAvVF7oiiD//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSExMWFhUVFxgVFRcVGBoYGBkXGB0dFxcVFxcYHSggGBomGxcVIjEiJSkrLi4uGB8zODMtNyktLisBCgoKDg0OGxAQGy0mHyUtLi8tLS0tLy0wKy8vLS0tLS0tLS0tLS0tLy0tLS0vLy0tLS0tLS0tMC0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAABAUGBwgDAgH/xABPEAABAwICBQYJCAYJAgcAAAABAAIDBBESIQUGMUFRBxMiYXGRMjM1QnKBobGyFCNSc3SEksFigqLC0fAIFRYkJTRTY9JD4kRFg5Ojw+H/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQMFAgQG/8QALxEAAgECBQEECwEBAAAAAAAAAAECAxEEEiExQVEFE2FxFCIjMkKBkaGxwfDRM//aAAwDAQACEQMRAD8AvFCEIAQhCAEIUB125UKWhLoo7TTjItabta7g4jab+aPYUBPk0aQ1ooYDaWrgYeDpWB34b3WedYNca2sJ+U1PMxn/AKTDu4FrSAe05pgZV0Ldokk7SR8ICA0u3lA0UTb5dB63gDvOSedH6VgnGKGaOUcY3teP2SVlIaWof9Bw/Xk/5r6ytpS4OjkfE8bDw7HZOH4kBrhCz9q1ypVlKQ2Zwqodl3O6YHVJa9/Tv2hXXq3rFT10XOwPuNjmnJ7D9F7d3uO4lAOyEIQAhCEAIQuNXUsiY6SRwYxou5zjYADeSUB2XiaZrBic4NA2lxAHeVUetfK24kx0TQ1oy56QXcfQjOTR1uueoKtNIaUmqXF8r3yuGd3kuw9l8mjssgNGza5aOabGsgv1SNd8JK9U2t+j5DZtZASdgMjQT2AnNZnIdw9oR0uHuUXQszWLHgi4IIOwjML0ss6K03UUrrwTSQnaQ02B9Jh6LvWCrS1S5WWuIirmhhOQnYOh/wCozzfSGXUApBaiF5jeHAOaQQRcEZgg7CDvC9IAQhCAEIQgBCEIAQhNes+mW0VJNVPzETC4D6TtjG+txaPWgK65Z+UM0wNDSvtM4fPPaelG1wyY0jZI4G99wI3kEZ8lleHXuQR17E7VE75DJVzOxPkc51zvcT0nd+Q4WTdo2hfUSiNu1xuTuA3uPUpjFydlucykopyexyp6d8rg1jXPcdwFynip1SqY2B7w0A7r3IJ2B1tntU3pIaeghvcNGWJ58J54de+wCien9cXzgxxtDGXvc5uNtl9w7PatKeEpUIe1l63RGTTxuIxNT2EfUT1b/X8yPUtI57sAyIve+62S61Gi5G5+EOr+CTwVDmOxNOfv7U6UulwTZ4t1jZ6wsao6id47G3FRa1GcOI2HtUk1L1qqKGds0Z8GwcD4Lmnax/Fp47jmln9kZ6qN08LAbX3gY7bQ0bz1+pRakkwPz7CD+YSlXhVuovVbroTOnKFr8myNXdNRVtPHURHovGYO1rhk5jusFOSonkP04YKp1E4/NVDTJDfdIwZt7cII/Var2VxWCEIQHmR4aC5xAABJJyAAzJJ4LPnKHrs+vl5uMkU7HWjYL3kdsEjhvJ3DcOslWBy06fMFK2mYbOqCcX1TbYh+sS0dmJVHQxczB8oI+clxMh/RY04ZJR+kTdg4dIqG7EpXEMkbWZSC7srgbBxHWf4L5FIxxDbW4nsz3dylGo2pQ0iJHukMTIyG9EXLnEXO02AAt3qTwclVE82bWvcbXs3mybWab2G6z2H9YcVxklLUm6uVy5jM+lvQYWEHpDaDv3XPBTk8n2i7AjSYsSWg44rEixIHX0m96R608m0dPTieGpMl3sZ0wMJEjgwEFvAkX25XVfcyXP2LnVg9Mv3I86KAsFw++HO2CxPEE7O1IKunA6UYNrZtJubAZuG8jIk8OzZJYdWJA0AzNvsyaSOrO49q9f2bkYMbZWkg4h0bZ9RxG3cVYpxKsjHLkr13NPI2kmdenkNmEnxTzstwYTtG4m/FXisqaWphG4Oa2zJMXR3Ne09Ng6s2kdTgNyv7kx0+ayhYXG8kXzUhO0loGFx7Wkeu6sOCWoQhACEIQAhCEAKp/wCkJpBwpaakYelUTXI4hgsB2Y3sPqVsKl+WI85paij3RwvlPaS8j2xBAVJrRZmGJuxoAHY3JP2otEGQmU+FIcvRabW9Zv7FGtaH3mPUpZTSYKIEboLjtwX961OyoLvJTfwq5l9qtukoL4nYiWs+ljUTGx+bZdrButvd2n+CaEKZ8kUtI3SURq8GEB3NmS2ATZYC6+X0rX87Cs6pUlUk5S3Zo06cacFCOyG6h1Irpqf5SyK7LYmjEA9zR5zWHMj37rqOrXmmKqncwyPlYzA0ux4m2AAvd3EDgsiSPJJJ2kkn1rzU+9zyU7W4t+y6WSyy78lmckunSQ6jefBBki7L9NnecX4kw8p+iRDV840WbOOc7H3s/vNnfrJu1Emw19Ob2u/D+IFtvaplywMHNU7t4e8DsIBPuCyXHuO0ll2mtfPX/D3r2mDd94vQY9A1pjbDVNvippY5stpaHASN7C2/ctWtdcXGwrJ2p0fORvjPnNez8QI/Nae1VqedoqWT6dPC/wDExp/NbhmjohCEBnrldrXT6TkY3PmwyFg67YiPxPISHXGRsbhTMIIiDYrjeIhhN+15lK7OHO6cOLP++Of6mPLwO5oUe0lKXSucdrjfvzKEX1LY5Ex/dZ/rv3Gps1J0YRDJPLUvjDTGxsjXHDhe1lmh24h7acOO4MLTknbkS/ys31/7jFFo2PjZBMQ4UrXc30sMhZiDRPI2J1x0n4sJ3EbBkpJJHSyULamWSqY0SNlpxjDLXlwAPfzYuGQEhrsR2lx6k/a16NfPRsbI7BI2bnBbpi7S8tBJsSLEcFDtBV3yEMY7mX08rDM7mw173GzrAucdsdmkjLabXN1M9WpzUUFM6Z5cXvOJzjmbF4GY7AFxUvkeXc7p2zK+xFW0M42GP9r+QiSCZubgwgbcJN7cbEdl1L9I6Lgjkjaw4A53TaNgHEX8G+zgvGsOjo4wwxktJd0m3Lrttt6RNtw9azJRrRzSclp/dDRi6UrJRev91Km1ipgWzAbg2dva04HW7WOc4+iFIOQnSJbVSwXylixfrRkfuvd3JNpmlaKjBukjkbbgZGPZbvKaeSafDpOmP0sbT+sx352WjTkpwUlyZ1SOWbizR6EIVhwCEIQAhCEAKmuUoX0w3qox8Un8VcqpvlG8sfcx8T0BSmsR+fd/O8p1/qWo5jDz/Q5rnebubW24ez2X701axePd/PFef65kw4crc1zPnXw8du3dw6l6KE6cb577cOxRXjOVslt+UNqetWKOkkc/5VJKLBoihp2YpppHODQxhILW22m+3YLlMqkepWtI0dI+UU8cz3Nwsc8va6MG4cY3MILXEG2IZi2RFyvOXklbyaN+V1UfOk09OGtYS+KKSSolYHR0odIebEgcbOzOzZc5RzSWg6aGjxPmc2ubMY5aYjwcJcCCLXFgGuxXscVrZXSuHXZjQ+P5DA6B0jahsMj5nhtQ0YedEhkxuxDwmuJBsNmd43pjSUlTPJUSm8kri9xAsLncBuA2IDhSMe57WsvjLgGYduIno2672T/rnQVkTo/lUhlu3oOJJAItjYL7wbZ78imKiqXRSMkYbOY4PaetpuMt+xKa/S8szGse67WvkkA/SkOJ208feeKqlGTqJq1l9fkWxlHI073+xJeTvw/1lo/UDyZRfZoR3MAWcOTrxg9JaP1A8m0X2eL4QrSof0IQgM26GdfS99/PVB/ZkT1orRNM+DHJAXuIPSa8NNtg2g5pm0FGTpZ1h4MtST1C0jb95HenhleWUAjbkX3N94Avf3qucczir8/pkqeRSa6L8jzq3rVS0jHNhhcGk4n4n+cBbaG5k2A9SdIddKdxF6NoLuOG/b4N+tViyZwtY7NmzLsS3R0+YLtxOfq2K9RS0VzzTqVF6zsWOdc6Yf8AheOwM3epcK3XWCRgZzMjQDcYSzr3etRF8V2g77XI7c0jwG9lVOLl6vDJp4hq0uSYM1tgw4TE/tsw+aG8eIJ9a+N1rp7WMb/NzDWXyDb7872d371GYqS7XO3NtfPjkvNTS4Wtd9K9rW3Lj0U79Ple1xRX1zZqyFzAQC9gsQBtdwBNhmo7ybutpGk+tA7wQl+izepg6pWexwSTUOmdHpOmjeMLmThrhkbEXBGWR9S7hBRikixzc3me5pZCELoAhCEAIQhACpvlG8sfdB73q5FTnKN5X+6D3vQFJaxePcmxOesXj3JNozmudbz1+bGbsIuTYXA2jImwPVdAJUKUVjqPnXHEwslkjaSxgAjiaGukc1o8EudkCBcBr+K4zvpxVsf0MGEuka2zo2uAdZjOgA4WDNxzOZO1AR1CmOk6qlLmuhNK0YTcSRPI25WDI8jkdvFM+hoojUkyPh5tpcTe7WOuCAGBzb2uRtGSAZkKTxTUTIpY3MDng3a4EPJxZAMf0bhottG26jCAmvJ14wektH6geTaL7PF8IWcOTrxg9JaP1A8m0f2eL4QgH9CEIDPGrHlWftqfiKJifk0Q3kP96NXB/i0/pVXxOXtjSYISN2L4lz8UfP8ATOKmlOb8F+RmwO+inDQ02E9IEZ5bDmvL4HW2bvzQyJ4HevSkkeCdbOrMkLKtp3uItsNjnxSaonYLjZfYSBwyzHYdyQUEjmXBtu8IcTn2JaZmPuOj1HCT3XuPejZUoxb0uc45Q2OQYgb4bWvuN96+ySBzIxiAsHXv29SVR6JfJjcwHCMxZpscid+zYUnn0PNgDsJz3WNwM7H12K5dWK5X1LYYebez+j6eQh0eLVMNjf51uY7RxXvQfl1v2t3xORRwFlTA1wsedYcwR5wt7kaG8ut+1n4iqrpq6NBJrRmhUIQh0CEIQAhCEAKnOUbyv90HverjVOco3lf7oPe9AUlrF49ybE56xePckNLDje1mzE4Nv2myAn+ovJLVaRiFQ6RtPC7wHPaXPf8ApNYCOjtzJHUnfWHkLqoYjJTztqC0EmPAY3kD6HScHHquPyU15cNIvodGQwUzjEHvZD0CWkRMYTgaRmB0WDsuN6i/9HjWGd1TNSPkc+MwmVoc4uwua5rThvsBDzf0QgKs1d1fqK6obTQMxSOve+QaB4T3nzWj+AzJAVqxf0f5MIxV7A+3giEuF+pxkBI9SkOpTYKbWPScAs18rWSRjZfEGzStb63g24NPBQPXLUzTUulJZGxTSOdK50MzHWa2PETHaS9o8LbCxItZARTXfUup0XK2OcNLX3McjLljwNu0AhwuLg8d+1RtX5/SEqGtoKOCRwdUc415ttIZG5sjrbgXub/IVBoCa8nXhj0lo/UDybR/Z4vhCzhydeMHpLR+oHk2j+zxfCEA/oQhAZu0e8jS7rEi89QDbePnMj1J70RAZIogCBZtzfPzidn6qYqY20u77RUf/YnTRTJXMa6O4wjCdlj5xAB27Uirzi+j/R58VK1GaTs2l+Rxj0Y7EbuaANnWL4s88uCJNGlseIEZXJbtBHC6RMlkxdGVwxAE5N28M9m1fBHKWlnOnsNtlgbknt2L13XCMPu5p6zVtODlUVpcLWAH/wC3/j3rpowAuaOLgPV/JXA0DgHdI3aLkEDgTbb1L3o99i1x3OB7l5mpZryNKn3ajaGxZbYW/QbYDgOGW7+C98y36Le4cVwgr4ntBa9puOIvsG7aF2bK0+cNvEcV57GupX5IprOwfLKOw85vse1QjUOUv0lTOcSXOnBJcbkk7yTtKnWs/wDmqMjMB7QTuzc2w9h7lA9RD/iVL9e33q1bIqfvGmEIQpAIQhACEIQAqc5RfK/3Qe96uNU5yi+V/ug970BSWsXj3JLo6QNljcdjXtJ7AQSlWsXj3JsQGhf6SMZNFTOGwVFj+sxxHuKh/wDRziJ0lK62TaZ4J3XMkdh7D3FSTVPlG0bXULaHStg4NDHF4dgkDfBeHtzY/IXOWeYOdgvZrjoDQ0EnyDDJI/PBGXvL3DJofK++FovsvvNgSgHXV7V+GbTmkq17Q90LqeKK+eB3MMxvt9LIAHdmoBpblzrRUv5qKEQNeWtY9ri9zQbXc4OFnG24ZX32zZ+TvlMfR1s81SC+Ordjnw+E19yQ9gJzAxEFvC3AAzaspNU6mU1bp2AvON7A+SMOccyTHYOBJ3CyA98sWj6eu0RFpZseCUMheD5xjmIHNOI8KxeCDusbbSqAVr8rXKTBWQtoaFpFO0tL3luAODB0GMYcwwZHMA3aMrDOqEBNeTrxg9JaO5P/ACbR/Z4vhCzjydeMHpLR3J95Mo/s8fwhASBCEIDNkfld/wBpqPfIpHqnfm3A78x7io2PK7/tNR8UiV0OkWxAYr2IsLZ59i7pe+jwdof8Xpfb8i6rDA9wa9t7kAA+yy4tlANi7pZdE5e/PYuDtIwGRjrWIuSbW2jfbbtTfpefnJC9ubWgNuNnH3lXyglrczqWJlJqLhxyPUsnRcDfwbD3lM9Jivke+9vYnaU3Zi3kZ9yZoHOBGHb/ADxVTZp0Yq0khaJ3YsOIAXF74jfiNmz+CTuMgFyfalVN57tzdoa4tDr33g8Tl3WTaXm2fqUtnUIRbtYctCSE1MFz/wBRvvSDUYf4lTWNx8obY8c9qVavO/vMP1rB+0Ej1A8oUv17PeqmelI02hCFB0CEIQAhCEAKnOUXyv8AdB73q41TnKL5X+6j3vQFJaxePcmxOesXj3JsQHeho5JpGxRMc97zha1ouSTuACt+l5CnCldNUVOCYMc8xsYHNbYEhpfiGI5ZkZcL7S28kmtujNHU9RNPGflgNmEDE6RhGUcZ2R2IOK+0EbdgtTUvWSXSOi6iqlAaXGoDWt2NY1tmtB2ntO0k9iAyurH5OuS46Rp31U8xp4GkhjsIOLD4x5uQAxuy/G+yyi+o+rL9I1kdMzIHpSu+hE3w3duYA6yFpnWnVJ0+jxo+lmFLHhawnAXkxtHixZzbXNrnO4vxKAyfpCONsr2xPL4w9wjeW4S5gPRcW+aSLGyTqS67alVWi5QycAtfcxyMuWPA27cw4XFweO8ZqNICa8nXjB6S0dyfeTKP7PH8IWceTrxg9JaN5PfJlH9RH8IQEhQhCAzX/wCbv+1T/E9K6CJhjBcLnFkc8shwSW3+MP8Atc3xvS3RrLxDt/ILqG55sT7p7p4WDYwbLZ3OXC7s7dSVujbYXaLXHmgjI32HJI2GxzsB68+rJdg/fl/PUrjx+APb0SOpNFG+x2X27f59m9Pr23aSmRriG2LHdy45PRTejR6cwOxGxFxsALtud8yLHK3YkssxIAsvlnDc7bfft49q6wOLRmx3couXWt4nXV7/ADMP10fxBJtQvKFL9ez4kt1eZ/eYCRa8zereEj1D8oUv17PiVbLVuaaQhCHQIQhACEIQAqc5RfK/3Ue9yuNU5yi+Vvuo97kBSWsXj3JsTnrF49ybEALR3I35Bk7an4VnFXdyZa60FLoeSnnqAyW89mFryTib0bWaQboBT/RqpWc3WS7ZMUbOsMs53tJP4Qqv1p1mrX180z55WSMleGgPc3m8LiAxoB6IFre9KOTTXd+iqkyYS+GUBszBkSBm17SfObc2ByNyMr3Fs1GsuqtTJ8smEZmyLscUuIn9NjW4JD1m6A98qTjUauR1FQ0CbBSy7LESvwh9huye/JZ0VlcrXKSNJYaena5tNG7ES7J0jxcA4R4LQCbDbnc22CtUBNeTrxg9JaN5PPJlH9RH7lnLk68YPSWjOTzyZR/UM9yAkSEIQGcYoC7TMlvNqp3nsbI69utKaWcCOMZZAe87e9e9G+Wqgf71X8Tym2KduEAt2AKYuzKK0JSVojrUTh2Yt3g8SuD5QBt93uukkdRGSAQQN5GfsuPepHBq2HtD2SggjLI/xUzrwh7zsUQwtWe0RBBUXavD8J2p3h1akBsHA3ytnfO44FdP7KVQ2NH8+pV+k0X8SLFha0d4sYHc31rwXt60/u1Wqv8AT/nuXKPV2Y3yGXC3An91Sq1JuykiXQqpXysRaPjbzlK4befseO1pHdY96j+o3lCl+0R/EpMad0VVTROsCHhxyBzxEXuOoBRnUnyhS/aI/jCJprQ9FmnZ9EaaQhCkkEIQgBCEIAVOcovlb7qPe5XGqc5RfK33UfvICktYvHuTYnPWHx7ktfq3kHCS4sCcsxdpcd/ofiVtOjOpfKtjqMXLYj6EJTo+jdM8MbtO87ABtKqEISnJRirtiZCkJ1Ukz6bf0duZ6+HtTBIwtJB2g2PaFCaZfiMHXw9u9i1fb5HlC60sYc9rS4NDnAFx2AE2JPUE8a1aDbSvY1ri5rm3u4tvfqaMwLWzKX1seKVWMZqm93e3yHjk68YPSWjOTvyZR/UM9yznydeMHpLRfJ15Mo/qWe5SWEjQhCAz9o7y5N9fV++RMTTkE7spw/TcoN8qqoeLcWOe8btlwE0N2DsUojk+AqwtWD/do8+PvVe2VhasD+7R9izu0/8AmvM0MB778h+0YfnW5/S9xUgBUZp5ixwcBe18vYl39cn6H7X/AGrKpzSWp7KtNyldDuHqDay6QdDG5zfCLsIvnYknP2KRf1v/ALf7X/aobrofmAeLxs9atp5Z1Ip9ThxlThJ+Aw6Iq3yVcDnuLjjaM+F02aleUab7TH8YSnQTj8ohsLnnGZbN4RoCk5nS0Ed8WGqiF7WvdzTsv1rfSSVkYzbcm2aRQhCkkEIQgBCEIAVOco3lb7qP3lcapzlLy0qOumH7/wDBAUlrD49yVN+ViIyCTokXIyuW2aL2tbYxvXYJLrB44/zxUgpBjpmgb48Prth961Oy8LHESnFt3Ubq3U9eFpKo5J9NCGLvR1Lo3h7TYj+SD1LjZTDUDRMErKyadsZEETCx1Q57adr3vDQJeZPOEkYsIblcG+5ZZ5YycWmt0c6zWlvNDmxaV2RvsZ1g7+r29cTcb5q2NMat0FHjn+SidktXT08THSyc2IpIGzPkicxwc/E5zg0uJsAMr3UA1z0UylrqmnjJLIpXNZfbhvcAneQDa/Uh6sXja2KadV3t/fcbKGFz5GMYLvc4Bo675XvlZO2tGiKmFwkqHB5kJ6YJOY803At1DZw2L7qRTl9bFbzSXnqAB/Ow9aknKhKAyBm8ue71AAfn7FW5eskYVbFSjjadGKVmnfrz/gh5Oz0x6S0Zyc+TKP6lqzlyfeH+stG8nHkuj64GHvF1YaRI0IQgM/Uptp2Y8J6vr/1Nw2phGxPT52x6dlLsgamdvrkL2t/acEyN2KURyfVYmrH+Wj7FXRUx0HpdsMLY3h1xe9sO/Pis/tGLlBKPU0MB77fgShfLJo/tDF9F/wCz/wAl9GsEXB37P/JY/cVOhq3HYBR/XUfMD0x7ilY09F+l+z/yTPrTpBs0QawOJDg47NliOPWFfhqU1Vi2uSjEa05WGTV7/Mw/WN96UU3lqP7VD72JPq9/mYfrG+9ddHStfpmJzSHA1UNiMxkWg+4r6FmB8RotCEKDoEIQgBCEIAVP8rcZbpCCTc6NrD6+fHvLFcCrzlf0U6WJj2i7mtfgHGRmGdg7opB60BnXWVlpinHVOqBBiO0dJvZvH5+tJdZ7OLZG7HZjsdmEzQzOY4OabEG4IXrwWKeGrKovn5F1Cq6U1JDzrLokxuMjR0HHP9Fx2g9R3JJobTtRSF5gkw843C9pa17HAG4DmSAtdY7LjJS7QemoqhvNvwh5Fix3gu9G+3s96adZtARRubzZw4gSW7QLWtbeAc+5ezG4SE08RQd4vjoy6vRi/aU3ocabXvSLJJJW1Lscpa5+JrHi7BZha1zS1hAyGECyYKiZ8j3Pe4ue9xc5xzLnONySd5JJTpq3oB1ZMYg4MwtLnOIvYAgZDebkKyNC6o0tJ86Tic3PnJCAG9YGxvabnrWLKaiYeM7So4Z5XrLohFqHq6adhllFpZBsO1jNtjwJNiewdahOumlhU1LnNN2MGBnAgbXesk+qykGueubXtdT0xu05Pk4je1nVxO/dxMCUQi75mefs/D1ZVJYqvpJ7LoiXamyYGOkOxoc7uF/yWmNRqcx6Oo2Ha2mhv24BdZv1Z0c6WMQN2yWb+IgW9bi1v6y1RBEGNawbGgNHYBYKw2DohCEBnTXVvNaakOy1TE/1OwP/ADTbKzC4t+iSO7JSTlw0eY65soyE0TTf9Nl2HuHN96YNIuDnl42SBso7JBiI9RJHqRAT3TrQyF+Zbbr3HsTQSujKhwFgSuKkM2x6cNW7t67D9za+GJMfyx/0j7F6+Vv+kfYqe5ke302n4j3zYSKvnw5Ydo2nZ38epIhVv+l7l4lnc4WJuuo0XfUrq4yLi1G9xfq029VD1OxfhBd+STcnrOc0lS9cwf8Ahu/8l10U/AJpv9KF5HpvHNsHe72J05GKDHpBr7ZQxvffdcjmwP2z3K9mYty/kIQhIIQhACEIQAm7T9G6WBwYAXttJGDsL2HEGk7g6xaepxTihAZT110WIpHBl+akvJCSLEB2ZYRuLTcW6iNyhTmrRHKxqpZr52tvA8l0oG2KQ7ZRwY45ng7PebULWUhjcWk3aTk7+PBSwN67irf9I+vP2lD6YjYuRYeCJtbAU6O0hLA8SRPLHi4uLbDtBByI7V10lpqoqPHSueOBNm+poyHckFl6bETuXNjh04OWeyv1tqeF3poruC9tp7ZlSPVDQUk87GtZjlf4uLcANskh81g2k/nYKTss3kf0EXSh7hlGBI7q2iFnaTikPDm4+KulNGq+g2UcDYgcTiccr9hfIfCd1DIADcABuTugBCEICBcsmhOfoueaLvpjj6+bOUg9XRd+oVTlBJzkGHz4L5cYXG9x6Lyb9T+paekYHAtcAQQQQcwQciCOCzzr1qtLoupEkV+Zc4mF+0DjC/iQLix8JvrsAxoKUtY2YF8IzGb4trmcSze+Pr2jfxKVSLny69Ar5ZBCkk9XX1eWhOgYylAkmAdLtjg333Pl+i3fh2lDls46aPMwNp/+pKRLLxaweKYeva627JWhyKaEMVK+pcLOqHDB9Uy4B9bi89Ywqt9T9XJtKVRLycGLHUS8AfNb+kQLAbhnustFU8DY2NYwBrWANa0bA0CwA6gAuQkdEIQhIIQhACEIQAhCEB8c0EWIuDkQVT+vnI7zhdPo8taTm6ncbMP1TvM9E5cCFcKEBjuv0VPSv5uaJ8TvoSNIv1t4jrFwuQczzmn1ZrYNbRRTNLJY2SNO1r2hw7iFFa3ku0TKb/JcB/23yMH4Wuw+xCNTNXzXA9w/ivLnjzWgdZz9i0bFyRaKBzikd1GaT8iFINEan0FKcUNLE1w2Ow4n/jdd3tQamfNU+TSvrnB+Awxf60wIy/249rvYOtX9qdqdTaNjLIWkvdbnJX5veRxO5vBoyCkKEJBCEIAQhCAEl0lo+KojdDMwPjeLOafYRvBG0EZhKkICjta+S2pp3GWjLpowcQaDaZnZbw7cW59W9R1umI3HBV05xtyc9l2S3G+RjsnP4k27FpNINKaFpqkWngjktsL2gkdh2j1IDP4j0e7MVMkfVJEXH/4xb2r1g0c3M1EsnVHGWk/+4AParZqOS7RjjcRPZ6Mslu5zivMXJZowHOOR3U6V4+EhLkWKkm0/EwFlJBgc7oiV7i6XP6AB6DuwkdSd9VOTOqqnCSoDoIibkvHzz/RY7MX+k/uKubROrlJTZwU8cZ2Yg0Y/W89I96dEJSsIdDaJhpImwwMDGN3byd7nHa5x4lLkIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhAf//Z</t>
+  </si>
+  <si>
+    <t>data:image/webp;base64,UklGRrARAABXRUJQVlA4IKQRAABwRACdASqrAKsAPk0ijkUioiGSyq54KATEtIBrz8Q/8T4S+VL2/KluG/mn4H/Zf3v2v/0X/N8U/jJqEfjX80/yH5kcSNZP/h+oX7T/XP9h/d/yF+Imbd9lagf5i8e/QE/Nf7C+xb/z/6r8zPcT9O/+f/UfAX/Of7L/xfXa9kH7n+zh+0h89izRlQ7EXucj9T2///1wldnyu3O/6YftipAOrtm/njoBdsuDEWKfMaiUVh91aNb5iiNbWiK1vQ5srzXC2BiVHowiTbQ/slDYBy34E4GYYf9cbnSAPtT0kQvJJ6rliL+Bta4EIMBk/75Izcxq17sC0o7+6dgrE2UWy+WIe6YczUdLFTWD35NztwWRW51acKfaT5d7L5k0JruXD2GfMLy3UIcK7jxCrGVPZ2mAyB+JkiDmLMqdKHycXdbWi/sGU2yq79U4cDbjW3s0bR2WG3PP/CBCYr8z1gB8ZqWxjWDlz6Ckl9W8W7oXlm00+5s/eD8b1P0w+OGdstyoTpWxjnMH4ti5+KaMMgOsdDfoqrUL3hcsAhfMC4jVAXOwceOApRGy3fTBdU4+NnO6XP23jxmp4A73CiuK5oWJPdESY5KWlNkqL2D967C6IbWc0nX6u1I+9BXxcDOHR3/d7o4eujED4IUmTdxuGxVNd1iDe0yLC/d13/cgibwf87J/w+T9DMb58KBauixZ0qpTMvXlr5MJcyVHH9RXD5PZP/d+SE+4/7F3lbegND5AAP79gPC3jOkPVKOgff+qlz9m2QjEuPkkUp3JEFDxuzH6WkxrYCvrfjYm1BDDdBbs29dLbJRK2Fzd59+3500gt9OpA9DwSLdC/v4Yz8vpc3F0ENpL83ptyMD+IEWvDc/s70+5uKAVcdmVeMSNd1v12zMSUXZfk0o5gnQRLNbxT4PtzSIa8BXr3/ljaRrr8W/wU80TvY3F4Pv1YppnyFOb+/R0x8j8EuJDyWg/BtP1lAUnfYIHRP/jk1SK3rDEDIy09M3fOiBKl1LaVdFIZEc3GEoq4teyzKSAv9s+TdhkW9XMirkGJXiE77lvUKDwPZQT4QYmoFSjUVv/8qKxx3SFkSkCFxR9DibOsBecUxp6NqXURN2uBKXE/x4/JrU+66a0vdUCA4kRiLe+0D16d4GBFj6BNRbbUAZc8mdjum9cEr4E+QedviJIyLXwhaaH7YhjuYMnct+t3D/wePx/zcI8k/pVBfD+sTKGn8u67vjj8/cZDVbADkv0vNfpeNJwBzf3Uw/iJ0jeBCQlc70qQ9HTPdlq7NyECFcWsMWbWAUriZkQyYTLYPzmFVZq+M51nIOBAFjsSVdiNk7AA+M8iYkz/jlUO3oSvSXGqWzLGEkzQeUzAnVod8gpv1Z1rcc+St7/1aB6xcla60S8F68ZbI6U6qz9cil6Q8hjK2qdiJx75vHym8lMREugVeky/6nljj9Odgvh7M6K/0PNLJwbY9ElVoJr850FzkYtYN4UpVSZNrOp4a8OobeUF0IijlFn4xiLPxdoGYSzmjqbASS0Axg80Jte5f235SaZt8Ps8E21U+EmLNYer6DdZEEk5FQXlh+LOXa4+X4jNoi4E3/xfy81CyKDuKWc+g+YtaX9P+KH7xtQMXEiavjI18oHsduIAcLeHYlmRP2HYNUoZ+Devz3nLwpDKQuPmihiurwmqRrg/XftbeIwIfLLHRNXmI8ANplcK0ooAn2UhOB5A22uXJ/WRKM/VzdB/raobhoPacW/VSJBk4tG7yz1NSFfPQIO1AR/glyU0jEz5q6qpokS2SxptCPqLvlDhr9J9k7ML757wJZaMAnOsNBUQAN+N7Z+2LpHaK87l6mLMjvj31tIA+sFnrxfG+rCM5WH9UY6lE1yvcArid02y6IX8f2Ao2X7dAvt464VwBBMRL23DXclUaKQiult38CuuIv6s9BbdXR9Oa0DvXQ/+0KUeB1P6oyqqqwSi2KR9rGC0et1N+qawD84mK4MlFnfHKYbCBzHCa/pXBiX7AkbakfkFTQOqCRonnwRPLq8apYOTScU4qt6hpsMZXHOyG9zowa21S4kVECFkkA5Dj3N2XG5XnxGjd95gWp2Ypg/b6NOSLW7waY5S/38xhPHjcEFNSz5PdYR4HFqVKmpkOD+NS4EoyZLFDvMv2I0xsLL+Hi4phhjAdFcApXrY+uPHsEY9iHCKbnLCD91A65yjoTBd9DZAmp/ZfSCNElIAGQtqstfp0nPE5FEw+PsK4286CoimePN2C/ee+itAIyABEjbs1a3a9A0U7MU3Rck2jlBMtx/ZvyVNYIlH6zbyLNCXkDr8CDY+IXQ40SxBO9GmhENiXscmOYlwZw3Uea5fUcq20Y60E42y0bUrtHh/k8KsRLcDChICjDolxs59s6WDL2ql6GqLDlAu1Ah1ZPeBIRZwleBwMnyrOnlv5bMYjEqF2JDQU5wn5NCOE+SnJxAKF9EeZCCdw1L2pmUvtPFP1bGbY18KRYdgpOuyBLm/CVPYu0BZA5Ebn9jgMHtY7nFjlIGQAOPW3bf8P19uUIHb9J8kIB3TXEkegSgDdIbfWoeVvTQSKJUZg11LDOA0K+XV22vuL6ewdIuuVMvNsW+fyRM7MciJFzveBYkeXltibZpJKdBfdBb2FjpDUbJkQzajBBMY1CZXpNMl0aQ1NIGtaXEA1lqYkEs+CVvMU8hF2l4CW5JeZdzjwwbNkptUq3sxLvkTtvQBcb7Mkf7mSyfJrdd8BwBxwzX+Ji8rrjYRup3eSRcjUnwTWT1/IL3KLVtuDVtWd/rV+gb66XKEns2l6cJa1G2dznh09nVvC7rxw9PLvJuVXBvavhrYEEZla/asfWKib697Jwf8FhTwMOaelV+K0Rj4VM+n4xKKiJT8yd9tXXIOiyNXs4N8ZPSFZWlTM5/7zqVNG2GC1RdAkj1aX8cgtGtdZ9s/64D0dQMfXuQVJDU1kNYJQKY66mB3AT3N1wKGZJoXhUZdoZ/SLHw6Yrz5nb5+mk13o3u0PLLPHe3Cmxx54k9xP8Znff/LxbiHJjfSo2OQagv9luWFxWJXTiFov3I4bN82ejp3CcTnByzQfHdd6q3IXyaOLH8lk21BMg8wmBXX0nnk/EYGADj6ypdXGp/blwvK8Hl64Bw3q55MZFqUNv1GjROpC06HiQzZqwKmJNqesWP+hnS00Qazaf/sc3EEYb5nufDbe9Inoh5So2QXb71ce4sw5L4ynLixIU2IScHJ7mMLmzUwlkEA/UrCV34Gi3auzeDnddT+GdWx+B490iRPaoefcitniOLd2/5hq2C3md2n1aqjw0TFFJiYh9p2EH16j3U53TtjUB0rv+Ke5aVzJgyaK80i4m9i1E0wxErUp1E9keF10C8QY+mhO7nCTlCH+EfsA/mhBEs/rInX6Zrt6tZiEvERUB7zpZdOxfPWpvLiR7gqd/C6nImo944a9uylZNCM2gctSWX40WlQq0dria4AV80FPTylP0EQL6nOUSs34Pn08T1IHFBpZ6kXnwdemggKTMTdoobUNZs7PkMnw6g06PNL/zsdjbq3zkDZdkx5oCE0JfDx4sWbbKxJ2LkazE1VayExQi8JABHFnPQXvdRWRyg+UgHaD47RPICSqWiZT937mECQHmAN8tBqiwpNWJ42zHzDd3YkUvW8lk8nXtdEuytspZvj78Zp4bH3cBecPsfRTa4hHcDh+5vuL0oZRJm2g7KrDx5os/uzhUuc30a+YWxg1BXzXlyLqR6z/v8LA6tYZVULceZb0qYJXHePgAAtCFVLIWBCVAtANq20Th1tE58GeqDlux0JpsmaovypSdMJegpvd44C7sFTkgX0PWUoo7qOPtqIdF1OmPHlvwHiJ5Ra3pU8Xw9L4WYIdcgQoqFXrXYYWZs14TkxPJq7G4gAYyQTqTI2w2+DmlK+he8+/7u3QrxoHLhmhGusOyi0VbLomPlc83HXQNr6k1jjaGiJx4aGcpUloFNiAzrEZ7ANmCpw9Fl6t6XRJ4rrj9jB5H9v3/RgKSebNAFnGGbubvAaShoDTcLlExB8ylKqT8mRyk99K+KltUAda1D1XeLYGIZr6Ea20AM2fL7LqfNCCGLhRueuE8jA7eMredw6WoIRjF+PbwL87VsGv93OAyA8bKDLcUnD51ZwrEZs6srTOrxNFq71VWzv1uTfVBU6fWR5f43QJZfWQiI2GFmQGho/fEYKa+6S8oM18YSIY/gVMJfcPN+SrqJZeotmOTmYb4XIbvQXoHR45BDeiGO8fHJe56Zj8Ds7JuDAbQ9Cuc4l4vXpz8+VE2Qz3HhbgSYVGUAueJGT5QDbOt4p0XbKZGlivu4oBfMlBMSG2HH0SqhjLk2HNcL3ZV0u5dUjB0xytmvt0GLr+xoGPc1dKLbYqt6DlwH5ZdxbwN925eEkFYDhnSLuPhCXRvSItarFRb3GGLeZBH2QCFvkpvsT68DYl8XoZ46mSmXS9ZklzWI1slIgyLyxPIQS57gYQnCKi/yKRFHVnvX8mF3ZR83jarR+6DoZ5q7k6HYiqWH0zWqdfNuAe3TLK2QH33B3fndT8zKH/GnQ76Kfhe6S5s4HZBfQqv2ykWXiggl1OQNpkqQoNqkwqKJt5i0ZkX41etiAQ70KgsS+5PdMHy6h3KC1EVawiHVGYsQoqTtH+RqkgI7PZ9sQg7zckoK9R1l7HI+tPSgdQvjbWe7AqYQ5w/IqXoRraT7dWgoUWoIwRJpth6CeaEJ4W9/30IRKKYeDBPBoSVBGYWM1+NJH+o8qv4gtA6kGWzlqQocJSXDqPQCU8H8zmw5ZvSf+o9Az2vd8aBpTy6GdgB4dXAfgAAFR4cSr1ItWUgM/NSAD5HdIBasQQzSnAnJWm5/wNGF5qkYHT0BBPiVqOlk3yqDNmZWcCOoXvF8QsE0WbXMKHQFgsVTLNNhhz6Q8Fgp58ws3Ksnw+MckAx/lsRL5O7J3rUIbNx4yfDKzNXM9aREOQYd/qB4cgju7h7nppf0LB1IMTGAocgzhBBgq3EQHib824qUOIUFd8c7e5c/VX37BqsTS3f7+s479nAMthOi029yra2k+jDMMZYRr8ELpS0jR9NchJk8lJsiEYdSre/KM3U3OySJRJOij/M0zJspbZPiNJVl9kenwF/dxS2kmJD9wnHTEoNj/ZAUMRW0a8q2rC/rfLJCf0oGLLUkFbwBKetdjPAEx3e5d5wATryO2dHzVHMO8aJ0lehs9Y4fM5Gcf7Jg0PcD2w60SJNcFANpGVGOR0m7bNDbnrogGXxNO7E49qhL5kFXKzxMLmyCrWUn6Ft4g15IACkGnXLQ6D7SL+UAZWXDRUyNdZQbtZPOcLy+nb8Foh0AFJDl98XjRtBUzRSeHImCrIkyck6aoeac1Tq9GRhyDUUEkN1T3fBLv6CnTEBO+ZW1RIzU7x9XfKLoLDV7Vn+P/zwxcf7xONGE7fhxAaSotgtw7zJZ/KREwAIlWYn29SBqsGOHpMKMOwHyqeb9SdjKtQcIrpLpWBRroYLqhW4XPiVYKgJq9wNGkrzJgfcffkKBxpehrTXsA1TEp3chv6vHhBur3FDsT0ayrpWc/ySLs/tKsMNu3H413n+fz6bvZLg6YteTb1C2SYN1D17lQuMwGsVyZDJxzne49VO3/5MKA7nO2SHqXqZUWXbdJRUNCc8JbkIcix8DNRioaoIDQxgs4f4skETJajtRwF9OOdZX3CZzBUrpkrWsCuTAIoHXLgI6/xExzUIY6ueitod+ToFgicTeBlFSVU9+79240901Wf+SarqYqf3ikzbkadSgtoT+H0E9WuRTw2kj03ak+icxE0lsbWVBOwWVFcS2yozXvqW3toZnuT6KgmNtXrLC7P0E913e0Lq6fJw0UW9/Bk1EZAYjmakc6VCjjArgE63v1bXCOjLAT3KBZbizYwiz9XYB/BqxRa+TVxqdoN7rRLdr77824Mt+hSg1Y3lTgedEbdONVkvNoKneL9wGQhewFf9/u03jdjPzkovP77n/F9dWsY5R/DGIuc69HWhGuJauAAAAAAAA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhIVFhUVFRYVFhcVFRYVFxUVFRYXFxYVFRYYHiggGBolHhgWITEhJiorLy4uFx8zODMsNygtLisBCgoKDg0OFw8QFSsZFRkrLSstLS0tLS0rKystLSsrLS0tLTctLS03LSs3Ky0sLSsrKy43KysrLS04KzcrKysrK//AABEIAPUAzQMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAwQFBwECBgj/xABOEAACAQIDBAYFBwgHBgcBAAABAgMAEQQSIQUGMUEHEyJRYXEygZGhsRQjQlJygsEzQ1Nic5KywhUkNJOis9EWJTWD0vBUY4Sjw+HxF//EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABwRAQEBAAMAAwAAAAAAAAAAAAABETFB8AIhYf/aAAwDAQACEQMRAD8AvGiiigKKKKAooooCiiuF3u6TcNhC0cP9YmGhCm0aH9eTv8Bc99qDujXL7a6QNn4YlXxAdxpkhHWsD3Er2VP2iKo/eLfLGY0kTTERn81HdI7dxUG7/eJqBAouLb2j0z8sPhDb600gB/cQH+KudxfSptJ75Xii7uriFx/el64lVpRVqLifm312i/pY2b7pWP8AywLeqmTbaxZ9LGYo+eJmI9hamSrS8cV6BUbRxB/Pzf3sn+tKpjsR/wCIm/vZP9aaz4hIxqRUbJtV20jQ+Z0FB0+H2/jIzdcZiPIzSOP3WJHuqawHSPtGLjKko7pY14d148p9ZvVdnrzzUe2sdXOOan1kUMXfsnpZjNhicOyfrxN1i+ZU2YerNXdbI23h8UubDzJIOYB7S/aQ9pfWK8rfKZl9JD6tac4LbBVg6MyOvBlJVh5EaiqmPWFFU7up0rSJaPGDrU4daoAkX7SjRx4ix86tjZu0YsRGJYZFkRuDKb+o9x8DrRDqiiigKKKKAooooCiiigKRxmLSKNpZXVEQFmZjYKBxJNGLxKRI0kjBEQFmZjYKBxJNefekPfd9oydWl1wqNdE4GRhwlkHwXlx48Af799JUuLLQ4UtFh+BOqyTDvbmiH6vE8/qjgB4UVsBUaAFbqKwBW4FBsorcVqKVQUCkKXpHH47L2V41L7F2VJip48NF6ch1PEIo9Jz4Ae02HOu13l6GARnwU5z21jnsQxA1yyKLqT3EEa8QKGqdLXN21Pj+ApT5SeWlKbV2ZNhpTDiI2jkXirDl3qeDDxFxTSgVOJbvo+VN30jRQO0xxrZzHJ6Qse8aGmNZBoF2V49Qcy9/MeddButvTNhJBJA9r2zIdUkHc6/iNR31z8OIIrMkP0o+PMd/lQemtzt8INoJ2OxKovJEx7S/rKfppfn5XANdHXk7ZO1HjdZI3ZJEN1ZTZlI+I5EHQgkG4NX9uBvymOXqpcqYlRcqNFlA4vHf3rxHiNaqWOzoooogooooCksTiEjRpJGCooLMzGwUDUkk8BTLau3sNhvy0yqbXy+k5Hgi3Y+yqa3527jdptkSNosKpusZNmkI4PLbTyXgPE6gGfSNv22PfqYSVwqHQcDMw4O45L3L6zra3FCpld1sR3ClV3TxHhRpBgVsKm/9l5RxdB5kf61uu6z/AKVPaKYagxWwqe/2VPOZfaK3G6TkXEgPlTKagBTiCnWK2DLHzBpnGCtwRamC4ehnZAWGTFsO1KxjQ90cZ1t5vf8AcFWPXK9F7g7Lw9uXWA+Yle9dVRlDb0btYfHwmLEJfmjjR42+sjcvLged685b47qzbOn6qXtK1zFIBZZFHwYaXXl4gg16mqH3q3dhx+GbDzDQ6o49KNx6Lr4ju5gkc6Dylait5FszLe+VitxzsSL+6tajTFFZotQa2paGW1J1i1AviI/zi8fpDv8AGn2zMeysroxVlIZWU2KsOBB76ZYeSk3HVvcei3uNB6S6Pt8Rjo8klhiIx2wNBIvDrEHd3jkfAiuvry/sLackEqTRNZ4zmXuPerd6kaHzr0jsHaqYvDx4iP0ZFvbiVYaMh8VYEHyqpT+qn3z6UFMz4TBvbJpJMOZBsUiPhwLezvqX6Z96GweC6qJis2JugYGxSMD5xgRwOoUfaJ5V5qNWRFpw7wxJrlzMTcszG5PMtYjMfE1l98U+pCftIjfxA1VB/wC/Vx+I9tYvVFpNvqo4CEeSRj4Ckm36/XT1ZarEtWCaCzP9v3HCW3kbfCtH6Qpf0ze1qrUmtc1BZH/9FlHCV/VmqM2n0gzuDlGv1m1I8ra++uTxGDmjRJJIpESUExsyMqyAcSjEWYcOHfTfNQdhs3e+WRck1ieTAWv9oDS/iKzLj7nUVzGyj84BVgbO2Mrgi3cR5HgfiPNTRY6joq3tXDSHDytaGZgVY8I5TYa9ytoPAgd5NXZXmPGbIMZt9E+6rz6OtrnEYNVc3khtGxPFgB2GPmNPNTWSupqL3o2l8mweIxH6OF2HiwU5R6zYVKVxHTNOU2RPb6TQr6jMl/deiPNqIVGpv4/jSwpbq7j1UgImUKWBAcEqeTBWZDbyKkf/AKKjTNFFFA72bsubEdZ1EZkMa53VbF8l7FlS+ZgNL5QbXFMxTrA4yTDyLPh5CkiG4ZeI7/Ag9x0NG0sc08rzOqK0jZmEa5VzEdohbm1zcnxJoGoNqXkGZCPWKRpSJqCTXDtE2RiDYKysPRdHUOjqeYKkH3cRVwdCu0rxYnDk6Rukq34ATKwKj1xMfvVTGHxTOFDfm16tTzyZ3cA+RcgeFqsPothZ3xIS5IWC9vEzW+BolRXTnjTJjsvJECD1an/EWrgtn7AmngmxCBOrhBLZnCs+Vc7rEp9MqvaI5C3fXSdKcubHzH9diPIkke41D7nbwtg5w+bEFRqkUEgTPLnjKq9wew2RVbKMxFhwuDpE5vDPhZdkQHMFkihhWJOus6TXVJ1GFGmR0HX9cdSXAvwFR+wtwJ5l6zEMMPENTnHbK9+UkBB4sfVUvgQmCUYvHDrcW6J8nhvfIliERAfQyZbE6hRYDXjD7Wx0+LbNiX7N7rChIiTzH0z4n4UDTe3B4CMRx4KRpZAT1jXLgrbTUAKTf6tQmz47TRmRGyCRC90YjIGGa4tqLX0qfRABZQAPAWp5j44QsZikdiyXkDZew3DILAa6N6sp51Qphtk7OxjhFnSJyZSMoyFu0ojUqwC/WsFAJAHO9RG8O5WIwfbYdbCDq8YNwOedTqnnqPGt54FcWZQfP8DyqR2NvHiMH2QTNBzic3ZBb823d+rw9t6yOm2vtHB42TtsJcJFHNiZxC0kSRxp83gEHWDTEZWEZVbAll45Kq3b2yvksvVdbHL2EfNE2Ze2oNr+HwseddVtvYQkwsmL2e7/ACd7GaEdnMY9S5RdLKxPYsLcR2bVwlUL4J7SKfEe/Srg3dN0jPgyn1FSg98lU3Ce0PMfGre3Zb5qP9sB6upmPxAqh7t2MZa6DokxVpnTk8f+JGFvczVzu35QCE4seCjU27/AeJp50cYoRYqNpOwvaBZtFF0a12Gg1tz50ouquP6WsEZdk4kDigSX1RSK7e4GuwpOeFXVkYXVlKsDwKsLEH1VkeSEOlPMRjEfAiJtJcPOZIv1oZwoljFuauqPryZrcDSu9OxGwOLlwzXshuhP04m1RvHTQ+INRRF6jRESCsdYKV6vwo6rwoEusrHW0uI/Cs9X4UDfraA55CnIipRIhQKYNLDz1q7eg/Z+XCzYgj8tKEU96Qgj3O0o9VUoWsK9Obn4FYMDhokIIWFDcfSZlDM3rYk+uqlec+kk/wBck+7/AAisbnwRYUHHYnWyD5OguS0jZrctGIAy8rFjxU233/VTj2DtlUsoZspawsLnKCCfUb91Ndoziaa4KGOIAIUAtmcZ3GYAZwrMwDEA6km5uTUJyO0kjzy26yQkmwsFBN8ijkB7zqaXxkiEqUBF0XMoH01Fmygam4XN9491IMwFrkC5AFyALk2FydB58qxsHZc+0Jjh8MoEgVZGkdsogMZZWyugJKNmAtxJtxteoG0mNUEXYAExG/pHq5ASzgLzUAXUm9zTYbSGVSWW5jzEBTpJ1xXITfQdWM9/EDnSmK3afDbQjwWKst5YlZlN1McjAZ1a3CxPLlVn9MO7GDg2essUMcLxyIiFFClw17xtb0zYFrm57J7zV0Vwk4N7EMBnN1+ojBc7jigNxa9OpJ1MSIo1BZmbTUtYKAfqhQPWxrfdPo8xeNwxxURjC3IRHZgZ8jDMvZ4LcW14kcuNQ8O0MxYvZCGZpAzW7TyWCxJbQLfUcrHyMEzsHbDYKbrBcwuQJ0Hd+lUfWHvF/OmHSBsFMPMssJXqMQC8eXgp0LAfq9oEeBtyp5DgJHjaRVuiXzEsq3KrnYKGIMhVRmIUEqupsNaxspFeOaCVwEWPss8hbJGzBhkjZwoCstyRdjdQBrVHFqdR51bGwJgmHDngjhvZFKPxqpqs2D/h81u4fwtQOMJtANxJLyXeQ3X0QLlRbW1rKK1mxbE3vbutoAO4d1QWycQcxGv5M9/eD+FPGlqri5einbzTwvBIbtDlynvja9h6iD6iByru6pvoVJOMmP0RAQfMyJb4NVyVlFa9N27nXYUYxB85hvTt9KBj2r/ZNm8BnqihXrvEQLIjI4DK6lWB4FWFiD4EGvKW3NlthcTNhmuTDIyXPFlGqMbfWUq3rosMxWRWBWwqKzWaxWaDIrYVqK2FBuBpXpHo8xPWbMwpvfLEI/7omP8AlrzeeFX30PTZtmKv1JZV8szdZ/P76qVR/SN/bJPMfwinewMHCILOI84LWzvlDHICiaSLYFybta1gRcUlvymbaDD9Ye4A0zc6aceWoGvLU6CqhjvFKFkdI82VmZUBQMskRbssjNqTmUC4HI68RUr0Xb1x7OxMhnDdXKmRiq3ZGVrgleJHEEceHdUv0OSxnajLJdWWKTqEdw4SYsgm6sn6ZAc6cs3HjUn0n7Mw0+Jlt1SOoQSzoWLQzNogxiDTqHXIvWKLow1uDYz8HDdI+8ibQxpmjUiNUWJMwszKpYliOVyzad1qiNqbdxOJVExE8kqxiyB2JC8r+J5XOtNsfg5IZGilQo6GzKfaCCNCCLEEaEEEU3rQtTcLpPgwWzxh5opGkhL9VkAKyB2LgMSRksWN9Dp46Vxu72zZJ5flbl0TrrgxC8s07HMIcMpvd7n0jcINTfQFPdvd/r7Syh+pz5FVB85iJf0MA7/rNwUankDb+5eBwxV8RJLAeoDROEYdThYwLtBFf6Nic8vFzfW1754HHjExxyqkqrbq3jOW7QwQ2bNhsKdTIzNpJPqXJZQbFi3K73RKxzJk7ITMYxlQtkUOUAAsM3gOdM8HMrSSFF7Ifssz9pYixVI1QnXVkOlyMvIXp7OmZSO8EVRy1WxsCLPhmU8yo9oaqnq390/yX31+DUg4uOBopcp9JDax5jhfyIp88LX058joRflauh3q2aj9q1mHAjQ066L4z8thDMzBX0DEkDQ8AaqrF6KN2WwmGaSVSss5BKkWZI1vkDDkTdiR4gHUV3NFFZQVQ/Tps0R4+OcaDEQ66cXhOVjfn2WiH3aviqu6fcLfCYeW2qYjJfuWSNyfei0FJithWBW1RpkVmsVsBQArYVgVsooN29H2fGrq6D3/AKnOvdiS3qaGIfFTVLv6J9Xxq4eg1/mcSvc8Z9qkfy0Sqy3vX/eMnhr/AIQPxqJxPo+ird6u/Vqw4kF8y208R3VMb2n/AHjL5fgtRm05FexEMIA4ozyJG1rm7O0uYHuswuQBrfXSIfZ+7uLmhfEwwSNFFcs6/RKi5y63JA1OUG1M9m7SkglEsbdrUHMMyurekkinR1YaEHjVx9G2++Bw+ylSaVUkg63NEb5pM0jyL1YN81wwXwIN7CqRFJ9jv4NnptOHJAhLRoxjUHNLhWVWfqDftTYRyCEOrIzBefbgd192mxUoGSR0SFppVQWc5ZHRYlY6KzEKLnhdjY2tXPKxBDAkEEEEGxBHAg8jXT7270yYqGFCWAYdbLci0kthFcgAXAMcjgsSbzN5mVr4yZfdnG8e8PV3hgZOsydU8kX5KCLnhcIfqcc8vFzfW1y3L7K2bNiZVhgRnkfgq87akm+gA43OlNTXbdD+24MJtAtiHCJJC0QdvRViyMMx5A5SL+Iq8MudxGypsJiDDiIQkoUm0rBQumYOr5grGwNtSCdLE6VKGp/pX29h8Xj4xAsM4jgZC7OVQtdnsrq6Zso4akEuRYmocTqEKdUhJ/OEyZx5APk9q86g4/ECzMO5j8atzdL8l99fg1VLivTf7TfGra3T/JffX4NVgcbwnQ0dFt/lkRawPWHQcgA1tedxr66xvAdDSnRmP67D9r8Gqi+KKKKyCuC6bF/3Ux7poT7Xy/jXe1wfTZ/wmT9rB/mqaDz+tb1qtbCo0yK2pOR8vKlEBIvbShrNbKK1FbrQKP6B9Xxq2egtv7WPDDn29d/pVTy+gfMfGrW6CuOM+zhvjPRKrnfFrbRfxNv8NRmIHZ9FG52e4Q2N+0QRYeunnSA+XHO3cyn3CtcPgnlByKWGgJuAO0CRck9wJvytWkQ27O7U2PxPyaEpcBmdyTkVFIUvcC7AkgCw1uOFI70bvy4DENh5rFgAysuqujXsy315EWPMGul3O3kTZeOaSUFlkRop0ijCdTlZerKg2Dt2NQLekTcmo/pA3h/pTHCSCN8ojWGJbXkYKXa5Vb6ku2gvpag5M0vivQi/Zn/OlpGRSCQQQQbEEWII4gjkaWxXoRfsz/nS0vTXx4vu4bGus3b6O8ZjsM2JhCBQWCKzENKV4hNLcbi5I1FcqIyQSASFtmIBIW5sLnlc1bHR70mYbB7PGHnWTrIc5jCrcShmLgX+iQSQb8rHU6UrKsNmRXZrqhsACHYqwuwXMguCzLxtrpe4tU6TSOBgMpaZQsly08hVGDwscwZGPDJ2r314DhY1vtZWiVw6srAcGBB7XDQ+dBzEjXJPeSat3dP8l99fg1VBVv7p/kvvr8GoFtvpmuDe1iTbwtofDWlujn+3YfXQOygchdSdBy9H31jbB9Ly/Gs9HX9ug/aH/LerRe9FFFZBXAdN722Xb608Q9hLfhXf1W/Twf8Ad8Pjikv/AHUxoKNWpPZmEuM58h+JqMFdJgccqxomW9h7zqfjUWoTakFiPOpnZeEAXtDS2t61xqo2S4K3YWB58/On4hYjS1vA1Uc5i4cjso4A6eR1FaLTzbCWk+6PiaaLUajef0PWKtvoNj7OKbv6gewSn+aqjxB0Ud5q5uhFP6viG/8AOVfZGp/mFEqo+kGItjnVQSzMoUDiSQAAKzsnaEkEbYeSNG+sMwa6uoF1kQkEFbai/CjpClZMc7obMpRlPcQAQa0xSq8EeJhAsqlZFEbBio6pT6N1ORyxHo9liFFkrSGO2FaYsSWu7lgqsEQSuwGds2lgCw5G1tQAa6PoMmhXHyq5XrWiKwkkakMOsVDzYgA6cQDUDe4prjMIGFmAsQgDlbmKNM91jQDtZm4m99D3m0E50sxRz7Z6rD5TI4hie3AzsxXUjmAYwfKtt/ej44LCrMkxkELLDLdQvp3cSLrwzOVtx1XxtxUEMsTpIg7SNE6lO1ldu3EpA+l2T2fCuv3039mx2GSEQiNZCs8uVi2YqxiVRoMqZlvz1Ki+mq9NTi+7WL0PnD/0OPQtmm+VZrWvmP5Tw6vLx5VRUeGV5XyBjCr65SM4iZ8qkBjqdV9utqUw+BkF82npdgk/ONE65o3C+jx591SqwqDooAUvkFhdUdiQpbixHC58aMnuy8X1WZmBdygAYMq2YKFzEZSG7N15GzHW5uInfDaYlcBVKgDgWzHUs2psL6s3LhanbtbgCSSAAOLMTYKPEmmO8WyBDHHI0nzz36yI2JUgmzqVNshGW3fe4JB0ogat/dL8l99fg1VAKuDdM/NDxdf4Xqh1tj6Xl+NZ6Of7dB+0P+W9abYPpeX40p0b/wBug/aN/lSUF7UUUVkFcD03QZtllv0c0LeWZur/AJ676one3ZXyvBYjDj0pImVT3Pa6H1MFNB5bWp7ZLJ1eY+kND+FQC34EEEaEHiCOIPiKWhlK8OfGotK7RxRaVT3GprC4ogXvpzrmXQlr07M5Iy8vjVQtjsT1kjP36DyGgpJK0Fbg2qNCU3dR3a1e3Q3BlwDN+knkb2Kkf8lUNgu0xbv4eVejOjXDdXszDj6yvJ/eyPIPcwqpVB9Ji2xsg7iB6wADXM4LabxRyxgtlkQrYMQFYkXYDhcqCh52Yi459l0vYfJtCXxYt+8SfgR7agt0cBgZOtfaEk6xoYkRYAuaR5es7JLAhRZDrp51pCeHhaOPrAS0BchGItIq9qzugvlQlJBe/GNuVqfYnE9YQbAAIqKAbgKotofE3bzY00wu2zh5JMO93gV2RA1j1YSYMrMtvnVBW5jJF7kAqGN1U2cXctgj80zKkaPdvRw6yyZnBOV8xC2GhZjwAqDAjBYHQEMpDXy5WB0YkcLX48qc43YJhQE2sFEZUNIDlaR5FzKwFhmXgdQw1FMsViHw7Dro2Q5uy3ZdGK5Wup4MLMp4c63xW8wkQISLC2ix5fRuFUWGigHh66VZeWAvHxNz3kniSeZpTFY1RCqvp1ZazfqNY5LcyGzH7xpphJmmzmIACNczvI1gq/WyrdmtYmygnSldtbOigCySsZ79fEQGMWWVcyqyLl9FSBfU30va9qiE8dgXjRcTiFdUYSLEqErJHOuYRGUMBpdSeySQF5c4Lau0pMQ/WSZb2CjKoUAC50A7ySfXUxs2V8ZJEmIcmPrIlYBsucgqhd2N+0EsuY8h5kv+kncwbOkRomZoZc2XNqyOlsyFsq5hqLGwOjC3ZJNHHRjUeYq3d2B8yv7VR/7Ux/CqkgHaX7Q+NW9u/pAv2837qMv89UJ7xuV7Si/EMBxseY7yLD31J9GcDfLsOSNDnca8fm3tpy58ag9t4q+ldP0SQ3xSn6qu3+HL/MKVVzUUUVlBTfaGKEUUkrcI0Zz5KpY/CnFcd0t7Q6nZU45zZYBra/WGz/4M59VB5uixDMSX9JiWPiWNz7zTkGk5YNKRWUjjUaPAa2pss476ycSBzoHINNsTNm7A9f8ApSTSs2g0HvpXDQ2IoJDDrlU2HAV6h2Pg+pw8MI/NxRx/uKF/CvPG6OB67GYaL60yX+yhzuP3VavSdVKozp/2WUmixAHZlXKT+unI+a5beRqvNj7yJhYoxHhY2njxPXtJKS6SKsbpHGYtLZTIzXB4gGvTW+m7ibQwcmGc2JGaN7X6uRfQby5EcwSOdeVtr7Fmw0zwTIVkjNmHwIPNSNQeYqxEdiJS7M7cWYsfNiSfea3wmNkibNFIyG4PZNrleFxwNvGsHDnurQwmqHe0NsyTRRxyWPVklW+kc3pZj9K51ueZqOpQxGsGM91Argse8OYxkAujRklQTlbjYkaHxFNpZCzFmJLMSSTqSSbkk8zWxQ1rkNB2+4+EwuMw7YOafqJUeSSInIFkEywqwJYgEr1VwuYH5wkXykF90s7aiaPDYKKRZTAvzrpbLmVAiqMrML2DXAJt2db3quSta5amBzs1Lyr4G9WXHjAiIn1UJPgZLXHsVD96q72To1+NTT4l2J8eP/fdVWH885kkq3uh/AECWYjQARg+Jsz/AAT21UeyMBLLIsMKlpZDZQP9eQA1J5AV6U3c2SMJho4AblR2m+s51ZvWfdapaVJUUUVEFU308bUzS4bCAjshp3Hi144vcJvaKuNjbU8K8wb07Y+WY2fE3urvaP8AZIAkdhyuoDEd7GhEW1JtGDShrFRo0ngCineK2JNAIzPC0fWrnjDWBZL2zFeK+u1SG7+LihxUU08ZkjjOYotu0yglAc2ls2UnwFLb1bwSY/EtiJbC4CogNwiC9lB58SSeZPqoIVUApbDrrWhpzhkoLF6G9nZ8Y8xGkMWn25TlH+FZPbV0VxXRLsvqcAJCO1iHMn3B2Y/UQM33q7WqyK5zfDc3D7RQdYCkqD5uZLZ155TfR0PNT6rHWujooKE2x0d4vD3LQrOg16yEXNhzMVwwPgAw8a5NUwzcAD9634GvU9Vd0m9GwnzYvBoBNq0sQFhNzLIOUn8XnxuqqwYKA8h+/f8Alrb+jMOefv8A/qoXJ5jkRwII4gjkaMvjTVxM/wBEYfvPqy/iRWP6DgPAv7E/66iLHvPtrNz9Y+2mmJQ7uxHgW9if9VY/2XTv9/4D/Wo0O31j7a265/rn200xKR7GjjHLzpGQoNF1PwqPJJ4sT66cYVaaLp6Gd31jw5xji8kxKp+rErWNvFmBPkFqyK5jo0nD7Lw1vooUPmjsp+F/XXT1GRRRSc8yorO7BVUFmJ0AAFySe6g4rpe3h+S4ExIbS4m8S24iO3zr/unLfkXFUIosKnN9d4jtDGPPr1Y7EKnlGDoSORY3Y+YHKoImo1AaKKKAoorFBlRc1NbB2Y2Jniw6cZXC3+qvF29Shj6qi4Eq3uhvYFg+NccbxQ3+qD8448yMo+y3fQqzcNAsaKiCyooVR3KosB7KUooqsiiiigKKKKCr+lLo868NjMGnzw1ljH54D6Sj9J/F58aRzV6+qr+k/o2+U5sXglAn4yRCwE/6y8hJ7m52OtFlUnmozUmwIJVgQVJBBBBVgbFWB1BB0INGaopXNWb0les3oFQaWgexpqDSitQW30ObwiORsFIbCU9ZCT9e3bT1gAj7J76t6vKmExBBBBIKkFSDYqwNwQeRBq99wd+ExkfVzsqYiNbveyrIqjWVOX2hy8rVUsdpVMdLe+4mJwGGa8am07g6Oyn8kp5qD6XeRbka36ROk3rA2FwD9g3WTELoWHArAe4/pP3eTVVY00FCRtRWt6L1FbUVrei9BtW0a3rVFvUls3APNIkUSF5HNlUcz+AHEnkBQSO6uwHxuITDpcA9qRx+bjHpNrz5Ad5HK9ejcFhUijSKNQqIoVQOSqLAVB7kbrJs+DJcNK9mmk+sw4Kvci3IA8SeJNdFVZFFFFAUUUUBRRRQFFFFBxW/nR3BtAGVSIcSBpIBo9uCyqPSH63EeI0qhd4d38TgZOrxMRQn0W4o/ij8G8uI5gV6vpttHZ8U8ZimjWRG4q6hgfUefjRdeRr1m9XNvN0MI13wE3Vnj1UxLJ5LILsvrDVWW3N0sbgyevw0iqL/ADijrI7DnnS4Ufasai6hwa2DUkrX4VkGgco9O0kDCzVHA0or0DiaC2o1FIXpaOet2ZTxoG16L0qYhRkAoEwKVSKt4AXYJGrO54Iil2Pkqi5qwt1+izFTkPiz8mi45BZpmHvWPlqbnwFDXH7F2RNipRDh4y7njyVBwzO3BV/7FzV77k7mxbPS+jzuPnJbcvqIPop7zxPK0vsPYkGDiEWHjCLxNtWY/Wdjqx8TUjVTRRRRRBRRRQFFFFAUUUUBRRRQFFFFAUUUUEHtXc/AYkkzYSFmOhcIEf8AvEs3vrmMb0ObOf0DiIfsS5vV86r6UUUEPiehCP8ANY51/aQrJ/CyVz2P6K2iNjjQ3/pyP/lNFFF1BYrdIobdff8A5dv56UwO5xkNuvt/yr/ziiiia6vZHQ+ZRmbHWW+oXD2PqYykD2V1Gzeh/AR6ytPOeNnkyL6hEFNvMmsUUHa7K2Nh8KuXDwRxA8erQLfxYjVj4mn1FFAUUUUBRRRQFFFFB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhMVFRUXEBUVFRUWFhUXFRUVFRYXFxUWGBUYHSggGBolGxUWITEhJSkrLi4uFx8zODMsNygtLisBCgoKDQ0NDw0NDzcZFRk3Nys3KysrNysrKystLSsrKysrKystLSsrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQMEBgcIAgH/xABIEAABAwICBQgFCAcHBQAAAAABAAIDBBESIQUGMUFRBxMiYXGBkaEUI1KSsTJCYnKCwdHhU5OisrPC8BYlM2Nkc/EVRFSjw//EABUBAQEAAAAAAAAAAAAAAAAAAAAB/8QAFBEBAAAAAAAAAAAAAAAAAAAAAP/aAAwDAQACEQMRAD8A3iiIgIiICIiAiIgIi8SzNaLucGjiSAPNB7RWX/V6f9PD+sZ+K+jSsH6aL9Yz8UF4it210R2SMPY9v4r2Khntt8QgqovIeDsI8V6QEREBERAREQEREBERAREQEREBERAREQEREBW2ktIRQRulmeGMaLuc7YPxPUFUqqhkbHSSODWMaXOccg1oFySVzRyja8yaRmIaS2mY4iJmzF/mP+keG4d6DKtbuWGWRxjogY2bOcNucd2XuGjsz6wtfVOlJpnYpXYzxfd58XklRsLFfxMQVWPv8pjT3WPkvrqRjtgAPA28ivrWr0EFjPQFvzb92atSBwHgsihffI5/FUavRgdm3I+RQRMchGw27Db4Kq2tkGyR4+28fAq3liLTZwsvgPagl6XWOrjzZUzt7JpLeGKyyPRXKnpKI9KVkwvslY3ZwDmYT4krBwR1Ko1w6/ig31q3ys0s5DKhpp38T0oveAu3vFhxWwYpA4BzSHNIuCCCCDsII2hcjsdbMHwOfgsu1O13qKMgMdijv0on5MPEtPzHdY7wUHRiKC1Y1qp61t4nYZALvidYPb1/Sb1jy2KdQEREBERAREQEREBERAREQFC636zQ6PpnVE5yBwsYLYpHm9mNv2E33AEqaXO3L7pcz6QjpGnowRtBG4SS2c4kdTMHmgita+Uatr43Mkc2OGR1xDGMsDTlieek43HUMtixFjV8cbnLZsHYMh5KvC1BXgar2MKlExXLQg9NXrCvAVZgQTWqWgn1dQ2FuQOb3bmsHynf1vIWweUPU+OOBtRTsw800MlaPnM2CQ8XA7TvB6lP8m2rwpaYPcPWygPdxa35jPA3PWepZTUwNexzHi7XNLXDiHCxHgUHMmko2ltiLuOTRsN+3cOJWI1NVgcWnaDY5E/es50no50E8sTyS5kjmXPstPRI7RZ3esG1jhwzE+0AUFE1/V5fmvrdIf1b81YIqiUjqi7h4fmpGljkOzD3g/ioSkcsj0YTa4vYbTuHadyipPR4qY3NfGMLmm7XNfhIPUdy3hyc6zzVbHsqWtbLFgzaT6xrr2cRYAG7Te2XYtQ0Llm2oFXgrYxfKRkkXfbnG/wyPtINsoiICIiAiIgIiICIiAiIgLkbWvSHpGkKyo2gzyBh+ji5tn/rat38tsrjBBC17mY5HvOFxbfm2gAG20es2dQXPMsTmFzSLnHckdWz4lB6arynCj2yK7hnHFBKRK4arGKpbxCuG1TeIQXGFZLqFob0msjjIuwHG/6rMyD2mw71ivprB84LaXIjVwl83S9aQAwHK7Rcvsd5+Tl1INuIiINM8rdHgrQ8DKSFrj1uaSw+QatUa2RZMf3Fb25ZqS8dPL7Mj4/fbiH8MrS+sMOKF3UQUGGqe1MraaCcz1TecEUTpIYvmyVALRG1+WTcy4/V7jAoqjNOUqxrhUNthqaWnqQBs9ZEAf2mlZGdcJIGUsFBK1sLKOEyBsbDjqHC8/O4m3Jvlbt7sb1nPOaP0XUWzEU9K48OZkvGD9l/krHQNM+aVkMYu+R7WNHW428N6ith6ZiZ6iojaGNqIecLG/JZI1xZKGjc3ELjtXvR9XzT45b/AOHKyQ/VY4F472hw71S1mq2c+2niN4qWMU7D7Tm/4ju0vuPsrzT5ix2EWPeg36iidVKsy0cDybu5lrXH6bOg/wDaaVLICIiAiIgIiICIiAiIg1TyxzevgZ7ML3e+4D+RaQqTd7j1lbv5YNGy862pw3i5kRlw+a4OeelwBxZFaNceke1BVjarlkLTtAVCJXcSD2ykZ7I8FXZQx+w3wSNXDEH2KmYNjW+Cz3kopsVaHbo4nu7zZn85WEMWzuRun6VRJwbG0d5cT+6EGz0REGL8pdJzmj5TvYWSDqwuGI+6XLQ1ZHiY4cWldJ6dohNTTwnMSQSR++wj71zRow3jsdznN7M7geBCDBHtsSOBXxXWk4sMrh1q1VRl9DIJNCzx4ulT6QhmAO0snY6IgfaaDl96neSSku+pqGOj56Gnw07ZHtYOemxNEhLtzWh3vKK0HNokxQCqjIc2Ivlcwuu57KloEZGLPHFjvkLB18yFa6LhpAA17o3FrntxdI3bjcGuFt+TcuBuorMP7KzxMdI+SnOEYiGzsc88bAbSvdI5Q+iDCI7OMeMYxcYjewu0jrJPVk3rUnROQbX5M6i9NJH+jqHW+rIGyX957vBZetccmVRaolj/AEkDXAf7TiD488PdWx0BERAREQEREBERAREQYnyrSFuiasg2PNAA9r2hcv4zl1gFdM8sJ/uiq7I/4zFzKNjfqj4lBdwFX8TFZU4UhCgrxsVdjVTYqzEFaNi39qloCKkhtHiJeGvcXEEk4dmQFgtBxldI0B9VH/tt/dCCuiIgLmjSNLzNbWQ2thqXkD6Jc4N/ZDfFdLrQXKbS81piQ7poGSd4a1mXfE895Qax1mitNfiP6+KiVketsfyXLHFUZUNNSQ0dM6MR7ZY3lzGuza4FuZ+i7yVLR1eauqgE+G3ONYcLQ0FpdsNuOzvVrojT3MQPjDA6TnccbnNDmsJbhcbHfYK89K9JgfM5rWzwFji9jQ3nI3G1yG5Ymusb8EVlNLpxz5jDM1hh50x82GtHNjFhBaQLhwV2IebkdGc8Ly2/Gx2qh6VTxyxmojL6jCx8rmZMxkAglt83WsTawPkrmqY4SlxcHCT1jXjIOa7YbbuFupQZLqbU4K2A7nOdGex7HW/aDFt9aIpanmy2X9HIyTujcHnyat7oCIiAiIgIiICIiAiIgwzliH90VXZF/GjXMjNjfq/zOXUPKwy+iKzqiB8HtP3Ll6L5Le8ef5oL+mV/ErCnV/EguWKsxUWKs1BcRLozQj8VPC7jBGfFgXOUS6B1OlxUNMf9OxvujD9yCZREQFp/lypLVFFON+OM9xFv4jluBYLyv0QfSRyWuYqhrgeAe1zD5uCDQ+s0d4r8P+fuWILOtMR4onDqWCoiR0JBFI50cpDC5hETySGtkGYxfROYU3QaJkpYql9RhYH0zoY242uMj3luEtDScha6xaAtxNxgluIYgNpbfO199lsDWjQejvS4WUdgyeglljDZiGMfaU07nulBNy1jQ5hIs47dxqvEEXpmCWNzOdwNZNG5waS5gDRI2+1pAHYp2qIY2GHEHOjY7GWm4Be7FhvvsovR+gqUsYOca1z6cYnmVh5qaPmzM4s53ptOKRgAA6TW5W6ZvKihiiazmphLckmwa0tFhhBaHu4O38FBIQi4IOwix71unVmqMtJTyHa6njLvrYQHed1pOkctr8nM+KjDfYmlb4vLx5PCDKEREBERAREQEREBERBjfKRFi0XWj/SSn3Wl33LlSD5I+u4eTV2Bp6n5ymnj9unlZ7zCPvXINO31YP8AmHzaCgvqcK/iCs6fcr9gQVmKq1UmKq1BWjK3nyZzYtHxD2XSNPvucPJwWiQbLb/I5VYqaVm0NmBvu6TRlf7Pmg2AiIgKA18pec0fUN4RY/1ZEn8qn1RrIA+N7DscxzT2OBH3oOZqpt2uH0SsAmbZxHBx+K2JIwi7TtGR7dhWAaRbaRw60Rbr01h22Nr8F5VaKawt1kjIb22+NlRfUW7L+h/wVk2jnLHKaqB3bzlYbzf7yFO0ElzdRWU0blsrkum6NRHwkjk99mD/AOS1hROWecmlRarez26Yu/VPbb+KUGzUREBERAREQEREBERB8IXLWm9Cw0zWxOIe91Q9xwnZECWsFx1AHtJXRmt9fzNM8g2LuiDwuDfyBXL2ma4ukfKc3OeQy+wNG9BIaSo6RsPOQucJGuYcJcTiaXBrsj237lZsrW8VExsLjmbqpVURw3bt2/j5IJllaziqzK1ntBZVo2opzFG6zATG0kWaM7C6xjTcMbqmTBY/JOXW0IL3RFXFzzA8sLTfJ1rbDbb1rampmkmxSgCwY8YcrW6jl/Wa0TXaMu3JSGoWlpI5xC4ktJsAdx6kHViK30e8uijcdpjaT3gK4QEREHOmszBHV1DCQLVEtuFsZIzWvtL0xdK4tsRf2h9561sTXCUCrqTu9Jm/fKw0PJNzvKCBFDJwHvs/Fem6Ok+j77PxU64r7GDvQRVPQPHs+8FM0d27R4Zr0VUiHFBJ02kQ3a0+f4LNOTjSBfXxBot0JQ7P5pYTw4hvgteHPILZ/Ipo68k052MYImni55xO8A1vvINtoiICIiAiIgIiICIiDCuVUkUoI4uHeW5fArmqv+UBwb95XXWntFNqYHwuyxDJ3suGw/1uuuaNcdVJ6SV4ljIG1r8yx1j812wi1+tBj9KpimlcGva11ucifE7ra8WI+HgoWA5qWp3ILam0RYgueXDhmLjtvkpOSBnOukjYI2uybG0ktYMsruzOzaV7jgkdkyNz8twcfgCvOkGTw4ecp5Gh2wuY9jTbcC5oBNtyCs1qldT9W+froy3tPdvUXTvDgHDYRdZPqTpP0erikJs3Fgf9V/RJPZcH7KDfEbA0Bo2AADsC9IiAvhK+qG1xr+YoqiW9iIXBp+k/oM/acEHOusdbzkkj/wBJK93c5xd8FCkqrVvu6w3LyyyD3GOK+leAqzSLIPcfmvW1Umjeq+LggqsOS6B5OdE+j0ETSLPkHPP43kzAPWG4R3LSmqGiPSauGA5hzwX9Ubek/wAgR3rpABB9REQEREBERAREQEREBWmlaBs8MkDxdskbmHscCPvV2iDjqqpXQyvieLPjkcx31mEtPmFd0z1m3Ljq/wAxWipaPV1LbngJmAB47xhd24lgVO9BmehNbaymj5qCdzGXJw4Y3AE7bY2nD3L7pTWSrqWGOondIwkEtIaBcG4NmgLHoZMsttjbt3LzHoyocATPE242GQ3HaGMNkElE0DIK6iUJR0crH5yBwvmQXFpHViAPiApuNBvbUnSvpFJG4m72jm38cTbZ94se9Ty1JyaaY5mfmnHoTWb2SD5HjcjvC22gLWvLlpbm6WKAHOWXER9CIX/eLPBbKXOfK7pv0nSD2NN2QjmW8CWm8h94kfZCDDb+aqNbxXlmRVSxKD048F6Y221fGZL0GE9iD2TfIKpFkvDXbgriCAkgAXcSA1o2kk2A6zdBtLkV0TnNVuHCGPydIf3B4raqitV9EilpYoBtazpHi92bz7xKlUBERAREQEREBERAREQEREGL8pGrnp1DJC0etb62H/cZchv2hib9pcvsNjw6jkR2hdkLnrlk1SNLVGpjb6iocXG2xk217eoO+UO13BBhlPIrqasbG3EbnO1goqJ6voZeKD4NPj5sZPf+Sl9EVjpAcTC23bY+KjpK0tNmxOcNxGw+CuINIVB+TT+JRGRQZWIW6tUdNiqgBJ9YyzZB17ndht434LS9GCQCRhNsxtt3hT2gdJvppBIzsc3c5u8H8UVsbXvWAUNHJNfp2wRDjI4HD4Zu7GlcwNcSS4m5JOZ2m+0rNeVXXAV07WRXEEQs0H5zz8txHV8kdh4rB8SCuG8VUY6+So47r62SyC4DLbVVbdypsIOZVePPqQfWx22bVsPkm1d56o9JePVwHo8DMR0fdBxdpasU0FoiSpmbBCLucc3HY1vznOO4D8t66E0FomOlgZBGOi0bd7nHNzj1k5oL9ERAREQEREBERAREQEREBERAVhp3REVXA+nmbiY8W62nc5p3OBzCv0Qcs646pzaPmMcguw3McgHRe3j1HiPyUJG9dZaa0PDVRGGdge0+LTuc07itKa2clE8BL6e80W3oi8jR1sGZ7W37AgwWCVTNDOoZ1E9psRmMiL2I7QcwrmG7dpA77/BBmFI4EKJ1k0yGgxRnpH5ThuHAdaiZtJOAwtJHE71ESXKCg5+a8lVmwE7B4K5g0VM/JkUjvqse74BBYscvpcpuDVCuebNo6k9ZhkaPEtspqi5LtJyf9uIxxkkjHkHF3kgw6OUhTGr9BPVTNhp4zI87bZNaPae7Y1vX4XOS2LoPkTNw6sqBbeyEZnq5x4/l71tPQWg6ejj5qmibG3fbNzjxc45uPWSgsNTtVo6GLCLOlcBzklrXPst4NHDvWQIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCzr9EwTf40Mcn12Nd5kKN/sXo//wAOD9WFPIghY9UqAbKOn/VM/BXMWgqVubaaAHiIox9ykUQeGRNGxoHYAF7REBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEBUSEBAVEhUVFxUSFRgYFRUVFhUXFRYXFhcVFRUYHSohGRsmGxcVITEhJSkrLy4uFx8zODMsNygtLisBCgoKDg0OGxAQGy0lHR0tKy0tLSstKy0tKy0tKystKy0tLS0rNy0tLSstLS0tLS0tNystLS0tKzcrKyswNysrK//AABEIAQwAvAMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGAQj/xABLEAABBAADAwULBwoGAQUAAAABAAIDEQQSIQUxQQYTIlFhMjNSU3FzgZGhsrMHFBUjQnKSFhckNGKUscHR00Njk6K04VRVhKPw8f/EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAJREBAAICAQMEAgMAAAAAAAAAAAERAhIxAyFRQWGR8DLhE3GB/9oADAMBAAIRAxEAPwCakREBERAREQEREBR/ytwxfiZnGR7cpgDcpAPen3rV10tykBcPyl79P9+D4RVxi5SZqGgbslxqp5daA6fWAfB7Qrcuzy0kGeXT9vrF9SvJa66x4Y2nyx/mZ8dN+P8A6XnzL/Om/H/0sm0tNY8G2XliyYWgSZp9ATo+zoL0Fala7YOMGKYXtknZRA1kve0OFEDqcL/mKJ3drwADcKU1g2nyx/mf+fN+P/pe/Mz46b8f/SyLS1dY8G2XlYZgSSBz8ovrk09OivO2Q8F310xyguJz6UL1By67ivbS01jwbZeVWJ2I+Ow6aTMYJJWW4PaM0T8pLS3WupSXs83DGetjD/tCjjCnu/Ny/DcpG2b3mLzbPdC55RTeMzLJREWVEREBERAREQEREBcNyn79P9+D4RXcrheVHfp/vwfCK1jymXDSOeK3UeJ8nV1Km1Si6uSq0tUogvwStF5mB91WpFVfV5fYroxbKH1LSQALs6mtSRu3+pYaIqq0tUoiKrQFUogycO6y/Svq5evwH9fq9CkfZveYvNs90KNsJ9vzcvw3KSdnd5i82z3QuefLpiyURFhoREQEREBERAREQFwnKrv0/wB+D4RXdrg+Vffp/vwfCK1jymXDUxYJ7gHACj2hV/Rsvgj1hbXZbfqWeQ/xKy8q9MYw8s55W5/6Ml8EfiCfRkvgj8QXQ5V7lTWDeXO/Rkvgj1hefRsvgj1hdEWqktTWE3yc99HydQ9YXhwMnV7Qt+WK25iukMz1cmiODf1e0Kk4d3V7Qt05isuYrpDE9bNrsMKLwfFy/DcpK2d3mPzbPdCjdvfJPNy/CKkbZB/R4vNs90LzdTl7elN42y0RFzdBERAREQEREBERAXBcre/T/fg+E5d6uB5Xd9n+/B8Jy1jymXDJ2O36hnkP8Ss3KsfYbf0ePyH3is/IvTDza91jKvcqvZV5p/8AfUlmqzlXhar9f0VJrr7P5omrHLFQ5iyqVGW1bScWI5itOjWcWK05ituc4Oef36XzcnwSpE2P+rxebZ7oUeYj9Ym83J8AqQ9j/q8Pm2e6F5epy9vT/FmIiLDYiIgIiICIiAiIgLgOV/fZ/vwfCcu/Uf8ALHvs/wB+D4TlceUnhtdgN/Ro/IfeK2GRYnJ0fosX3T7xWyyr0W50s5FZMW/X0eknX1rMyplSymGIxuzXYo6e3QdpXnN9vbu43d/xWZlXmVCmHWt6dXHcvWR6afz/AJrKyoWJaUxCxUOYswsVBYrbM4uNxv61N5uT4CkXZgAgiAFARsr8IUd7S/W5/Nyf8dSHsp1wRH/LZ7oXDPl2w4ZSIiw0IiICIiAiIgijlhyzxsW0cXh4JQyOKCMtGRjiHuLAXAuG/wCsO++5Hp4iblPtEH9fxH+o5bPlW/NtXaJzC6jYOkWk1JHoB9ugDYPl+ytFio9VRe/KjaP/AKhiP9RywcbtzGElzsVK4miczs1looWDvoKrIsTGtQSt8nfKCabGSYd7wYWwh8TQGdGubcTmbvJ54jee5HG1IuRRB8m0w+kw4uvNCGk5g6zzER1cN/cH1UdQpg51vWtRJTzImReGYLFxm044gDJI1gO6zv8AIFbNWXkXmRc3tPldGyuYyznWxnEdVXFwo7+tc+eWmMdZbDCBZFFwuwaP+IOo68VqIZm49J+Eh5EyLjthcq3Pd+lPgjaQQAM+fNdUdS0DfqT1LqGz2AW6ggEHrB1BSeyxFxdL5YqSB1qw57lZcXdSlmrk9rfrs/m3/wDHUg7GP6ND5tnuhR1tE/pc/m5P+OpI2b3mLzbPdCxmQyURFlRERAREQERcPy85TyQ87HAcrYYw+VzdXue/veHj6iRRcRrThRB1QRtt6cN2ntEEkZ5SBuyuyStNO4jcSCOIritbiJWk90Fe5U8hdo4YCaaWIiV1aSSZsxaXnMMlDceJWkbybxru5aHbtW845uu7pBlf/hTaOF1nln529YWHjG3uKtO5OY0b2Djxdw7MqsnZGKBolrfvF7eF8WjqSynZchcY36QjcCdIWBxNNp0eG5twHCujoerfxKluLHBwsSAjdvHDeLCgrYnJ7GczLi2yNDILLgx7xL0Mkjsgoa5CdbUk8hNsy4hskGIka6WLKQ+somidoH0NLsEGtNWnipz3ax7dpdPjtsCKJ8pcSGNJoEWa0rf1qMpduCfEGfFRicluUMc1pawWTlbd6DT05jxKkbbezOdw8kZxHNhwouDXP04gNvX0aqLcRyd5t4Dp5pmZX9KPC4mIhwy00hzNbs1Vjo0au1rC06mWMR3hVijDI8uEfNN4MYGNA0AO4cSL9KoEUVEDOQQBqBwIJr0il7gNhSGME4gsdXcOwuNc4djnCAgmq1BI7Vkx7BfRzYpwPADBY11+U8yKHr8i6xnMff04z/HM3X35YXMRiyA72f0XS8nuWronQ4WRheHPEYdfSGdwa273i3alc9FsR5jGZmKbLzlF3zfFGPJr0w0R3VcKvXcF13JLZkUFmUyzSGqLsBiGiOjZLXujze0btymeV8906dR2x7O0c7rJ9JVJf216VS1rSLDgN9WxzT6iAQqZ4GO0c8epw/gV53rtyO0Hfpk+t/Vya/8At1JWze8xebZ7oUY42MNxczW6gRyVv/8AHJ4m1J2ze8xebZ7oXSfRw9ZZKIiiiIiAiIgxdp45sEL5n9zG0uPWa3NHaTQHlUZyRuIZLM5nfW4uXNbg6YPEjGFoN00BpDRrRF9EG+h+UDGhzo8NmpjaxOIqrIstgiAPF72vcOrmb3Arhds7Rpud9AAdBuuVoJOp46uv9p7r14qwkszlFypfJRcRTbyueGkgnfkj1Y01puc6vtam+K2ptouPTe5/Vnf19QJWZJJJKzLJTGXegAlfvrO8dyBmNNbVXv3hewYZjO4aG+QanyneVqMWZyalmHfIwPjaH6kFoa+21dbxrdDd4QutasPxUsRp4ki3aGwNRe47/augcF62QgUDp1HVp8rTok4T6OU55xPavvv+mNsXlbLCCGlha424FoLXEgA5mita6iPTuW62RiGRtjxUJP1BDZW6O+ol0c1pq3MaQCDQNhoO6zpNp4MTNaI2sjewZW0A1rx0aaXUaoA0N1u4LU4DGPifxaRYcCCLGrXaH0gg+TqKz7OmHUjL+00DlJh/CP4Cvfylw/hO/A5R7suYGMAcDlaN5PEADedNPQsw6aHyLWsNby7b8psP4TvwOXn5S4fwnfgcuJtLV1g3l2v5SYfwnfgK8PKLD+EfwFcXaWmsG8uyPKGDwj+Aqk8oIPCd+Arj7S01TaW3fiGyYiV7dQY5a0rdARu9ClXZveYvNs90KHtnHpO81N8J6mHZveIvNs90LOS4slERZaEREBeE9ei9Wt5R4zmcLLJ4LT279EEa8pdpiXEvsgMa4l28Au6LADQJ0AYy60omtSFyclSzOkvMxriIzVZy3omWuA0ysHBo7dMba+KdkDQelI7Qm7zGmNPbq9x9C2MUIa0NaKDQGjyDQLcMyrwsmR4dW6xoaPSaW2DRoi7B6wFnR41pJPzVjxmzbr0LSMpNWdbNnXf2VgFqu4XnNQwgDRziayjKdCS7cLI9NDUmlpmmTh8Y8EkRE5jG6how5Q5lFoFGzmI6i29aXjcZkDbw7KNkaABwcwNdwvKTZ0reADQo+5zRAxLekXEgsflJcQTvZxoDUAb+s3iYzOXfWHWhR03bwQW6EHrCFMfEkOc5waGgkkAbgOoLB2hs4StdICGyMbd6/WBugBrjrV0SRXUtgWo0AHUWNxHWDo4eolTKLhyzxn8o5j7X+uf2ZipGuBhc5riKFb6doRXE62B1hd3sfGQMYG4hr8Q5rchkDS3nAS7MQHOBaaI6RbZO6t54BkRjlewGix5AI4a7xfba6nF4q8URplkiZiGiqIzgEj/cFnHu7XcXDLxj2F7jE0tZ9kHeNB2njfFWbVNpa6IqtLVNpaCq1chYCCSTpWgFnXS6sabvWFZteteQbBIPWNCgzsG3LI8XdRzfCdp5Ru9CmHZveIvNs90KGdmnpO81N8J6mbZveIvNs90Lnk1iyURFloREQFzHyjvrZ0voG/y+tdOtHy3whl2fiGDfkLhpfcdI6eQFBAhfGXxg5s/OxZfBr6wm9N91pY9NLsdg7PZM+Rr3NbUMj2uc4ta1zapzyPsi9VHGLlyvbJp0C13G+g4EgcLPau7gnIBLHUHtLSR9pjt48hFLUSjd8qeTrMJHAWyGV0nOFztA3o5MuQDh0jrZtaTEComAfazSHtILmNHoDXEffKOkJaGlxLW2WizTS6rocLoepVse0tyPOWiXNcboWAHB1a0aGo3EbtSRbKdHi9hwDE4uMR02LBunYMz9JAxhDruzqTodFzNXDr9h7QPJIHuI8lsvyud1rIn2xJne9+KiDpGGGRxmw/SYQAWkA9QG4XosMY6J4yRPDw3pOI4k6A1vDQAQL17o6XQd07N/snkwyfAvxHPiF7HubbyBEQGtIzHe3U79fItTyhwTIsVLHGKa11DUnSgd58qxnTktyFxLQS4Ns5QSKJrddAapNiTI8ue4uc49Jx3+U+j+CWTURctBteJoxDy0k21hdpVP6VgaC+Guu/f1bDFGsZGKusLXqe0D2KxFFzk2au7eX6X3N9W/uRfpWdtPDkY11jSOKOC9NXNAzV6Wj1qY8QzhFYRE+IXM/wCyPb/VM/YPb/VdDyR5KOxmaR7zHC05SRWZxqyG3oKBFk+o610m0Pk7hcw/Np3CSrAeWua6915QCL69fIVraFpHWfsHt/qmf9ke3+q8mjcxzmPGVzSWuB3gtNEetUWqi5n7B7f6q5FG53csvd18SAOPWQse0tBn4AU9wIr6qbjf+E5TNszvEXm2e6FCuzD0neam+E9TVszvEXm4/dCxk1iyURFloREQF49oIIIsEUe0HevUQfNfKvZhwuMkiLbDHktF1mbdgXwtp38MwVextpMNxNsNbZiDjrzfBp1Ord2psgNK7v5aNj9KHFAHK/6iSgTlcLdE+h1jO09fQHABRJNG5p0sEEO0reLpzT6fT/GkOsxu0GxML3C9aAs6k8PYudl2k5zSTPIHG+iNGAHhuvd2rJxBMuGDpra3PQezIWlwsU/O4ZPTQ7daWHhtgSOexvSY1zqMjnRFoDiA1xaJNABqSL3aApCzMMYE33bbrwR6Psq7hsbJGRUmgN5dQDruIAWfDyccctzEBzzHqIxl7n61/TNM6XCz0XadeKdiOA6ZLQC7M7MyiL6OhcA3T1dq1sx8uhwG0WTAlgOhogjcVs8LGynF9i2uqtMo3F/toDiTXEXq8LgHNjaGxmNrhedwY0vbp0+joLvRxGtaB1hbaBhktoJEbadI8jfQNaeSw1vlJrXLirM4uIj5WcOTGDKGkE22PKM2RrBb30d4azK3tz9hItyiiR0u3NWYE6lrq0JBsXxq9LVPz1zn52ksDejEAayNadCD1k24niSVbtdISUrfJ9M2XZroWEZ2861w84XOaT2Uav8AZPUtpye2RJDI10gaA3B4XDmjfTh5zPw3dIUVD+z9oSwP5yCR0bt1jiOog6EdhWx2jysxk7DHJOchFODWsZmHUS0Akdm5Slta5TYtkuMnkjILXPOUjcQKbmHYav0q5sTa8cEWIZJh2z86Iw1rtGAtz24neD0hVa79QtNaWqyzNq4kSYiWRt5XySSC99OeXC+2ireGmDbskHSiACbB3a7hRPpAWPa9AJ3C1RsMHJmle7rjmJs2SeafZJ6ybPpU0bM7xF5uP3QoS2Z3bvNzfCept2Z3iLzcfuhYyaxZKIiy0IiICIiDW8o9ktxeFlw79OcbQPgvHSY/0ODT6FBGJ2TJO1jWMbz7ZPm0kdhjzJmLdHuOW7BFGromydF9EqK/lG2HJDiji4WkRThvOPAsQTsI5uZ3U3M2N19bDe8KwIu2hsuSGQxzRvjfxa4Fjq1F0e6GpFixrodVixROb3Di3duLmbuxuhvtH812HL35RXYxogdgA3mZCS4y2cwa5jhl5vo6k8TuXFybWJPRhLR1c7m99hUv2WvduHYtxY1oBa4d0/nXHNofs0K1r1elXMLESRoXu4VZd1b9XeohaIbXeP8AC9rP7aus26/c6NzhrpzpaDY4hjAD6ksp1dho+tJNaiKPKXHqs9zH952vYVkYjajvmoj5tsT5HlrWtN5WgDMbOp4gk6ks8gHL7L22S8NMNXZ7qwS1thtUN9V6VscI8yOMjiSAMjCdMw3ukr9p1n0nrWo7sz2ZrRQobhoF7aptLW2FVpaptLQVWlqm0tBVauQy5TYAPCjqFZtLQbDZz7keeuOc/wDxPU3bM7xF5uP3QoN2Uem7zc3wnqctmd4i83H7oWMmsWSiIstCIiAiIgLxzQQQRYOhB3EHgVrm7fwpfk+cMvy00+R56J9BWxa4EWDYO4jcUHzbyww7W4zHZeiI5HuY1rejlOIETga7kDMD7OIvSQOBGoXTcvowMfjxVVmO9wvNiIH8N+rro6bjvAXLYbcqMjmx1K9h4WngscFZOEfvQXJGMjlGd4yc2yQ5mluVzw3TXeLJpw0Io8Vk/SsHjmetb3kTsmLF7TEUoDmDCxOIOWYEhjdKkaQKN9GuiRQ3KR5Pk82e0Fzo4mgbyYMIAPKTFolzBUShv6Vg8cz1p9KweOZ613sEWwXTiHoMJOVr34TCtjeSaAD+a0vhdLqfzc4HxMf7thP7SbSmsIZ+lYPHM9afSsHjmetTN+bnA+Jj/dsJ/aT83OB8TH+7YT+0m0rrCGfpWDxzPWn0rB45nrUzfm5wPiY/3bCf2k/NzgfEx/u2E/tJtKawhn6Vg8cz1p9KweOZ61M35ucD4mP93wn9pB8nOB8TH+74T+0m0msIm2VtSHO6pGuPNT6A2TULyp+2W4GCKvFsH+0LQQcgcCw22FjTThbYoY3U5paRmYwHcSujw2HbG0NbuGg9CTNrUQvIiKAtJyq5UQYCMPmJc95yxRMoySH9kE0ALFk6CxxIC3agP5Uscx21MzpLdE50ZZwZkDDHr25nPrrJ8iCUNkcqJ5ml0kMEJJ6DDM55r9t7WU09gBWNyh2niZG8yZsNgo36Pfz3OzOadC2Jha0AndZUU4flARucQreO2myR2d4zOqr13DcD6yqjv8XtGDDxc1h2gACi40XvPhSP3uK6XkRh3Nw7JWvJZJq5h7kZjo5g+ybq+sXxAUF4rbJcabZJ0AGps7l9D8l4ObwUMZ3hrGeoC/4EqiJPlI2VM3aONk5t4jfCHNfTspJZAcgcKskxPFajdYJIUeRTABfWU0LXintDh1EArUzck8A82/BQOPWY2rKvmX5yOtXsPiRuGpX0j+Ruzv8AwMP/AKbVch5K4FhtmDhaexgCDgfkt2dKNpzzPjcGDDQxscRTXmmN6J49w7S7Gl712rWRYlzpZ+kwFzYmHVoaLbmrdmdvvfRpb6CFrNGtDR2ABQZtnamKic7C86Y+be6KmnK52Ukjpb+5104KwjZbV+TmAueMG8ts97e4Fg7Guq67HZvKF02z3bWiwobiJ8LhY4mAc5Tp53NYN5zPyA0O6OZRLNtDEDfNKa/zHD2qvavKXF4hvNzSdDwW2LrwiSSVRvNn/KDtAzAHHdBzsoMrIcjQToX5Iwa66pSjyO5WjFukw8zWx4mHu2sdmjkboOdid4OosakWNTYK+dZweAXR/JNNJ9MYYMJr60vrwBE+77Ly+mlFfSCLy0UHqIiAiIgIiICib5XuQsk0nz3CNzvIa2eLQOdlFNlZ1uygAjiGiuoyyvCL3oPkuTZz2NBc4MJ+wXhsg+9ESHjy0r0GEYdHGRx6g5lH0k37CvqaXZ8Lu6hjd5WNP8QqocFEzuImN8jGj+AVsQJyV5LTumZJFhHkNNjOTlPUS4tHsB3Kcdi4R7GfWkF9VpuA8Fo4D+PqrYolgvCvUUFK9Sl6gpK43l1yPGJ/SIHBk4FOBBLJgNwfWocODh5DfDs16g+c8XG+Mls0D4yN9gZfQ61rJcVBmova3yuafYCSvpx0TTvAVs4OPfkb6gg+bcHgOfOWCOWYncGRuA9L3ANClr5MeQYwDXTzOD8RKMpoHLEy75tpIskmiXaXQ00171kYG4UqkFACqC9RAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEBIREhIVFRUVFRYYFRYVFxYWFRUVFRYXFhUVFRYYHSggGB0lGxYXITEhJSkrLi4uFyAzODMsNygtLisBCgoKDg0OFw8PFSsdHR0tLS0tLS0rKy0tKy0tLSstLS0tKy0rKy0tKy0tKy0rLS0tLS00LSsrLTQ3LS0tLSsyLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABOEAACAQICBQcHBgkLBAMAAAABAgADEQQSBSExQVEGE2FxgZGhIkJSscHR8AcVIzJykhQkM1NigqLC0hZDRFVjc5Oy0+HxNGSUw4Ojs//EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAcEQEBAQACAwEAAAAAAAAAAAAAARECEiExQVH/2gAMAwEAAhEDEQA/APcYiICIiAiIgIiICIiAiJiYjSNJNRYX4DWfDZAy4mmqafXzUJ6yB6ry0dPt6A7zC430Tn/n5/RXxkfPz+ivj74MdDE506dqcE7j74+fanBO4++DHRROeXlLbal/sm3rmxwWmaVQ2BKk7m1X6jsMGNhERCEREBERAREQEREBERAREQEREBESCYEy1iMQtNczsAOn2cZymleUTln5tstNd4GtgNpudnRacfS0/wA5dmZiSzaySba7eoCXGpxdnpPTTVCQpKp4npNt3QJrM80fzsPjcPbIOlR8cPf0S41je85HOfHs6JoTpYfHD39Ej53H/Pt6Ywx0Gf4+NknN8cJz3zuPdf2yltNAez/fojDHRPVA2tbo49UxMVjLdfgJhUiWGZtpHcNw8ZfTCBlbju69vugYz4pjvk08cRt1iYWaQTKr0HkzpvPak5v6BO37J9k6WeQYLElGGvf3HjPUNC4/nqQbzhqbrG/t2zNjHKM+IiRkiIgIiICIiAiIgIiICIlvEVgilm2D4AECatVVGZiAOJmg0zjmqoadO6qfrMdrDgBuBnC/KD8ofMOaVIB6+++unQB2AgfWe2u3fwnk+kNPYmuSa1eo992ayjqQWUdglX09vxmj6ZXK9XKN+tVv3zRfM+jqe3EoNZPlV1G3XxE8cLyC8avZ7CzaLX+kUT/89/U0ttjtGD+dpffJ9s8gLyM8adnrx0lo385R7zAxujzsal3meQZ4FU8Y07PYDV0efOpf4hH70ChgmIKFGINwBVJ2dGbXPI1xjjY7d5m10XpoZgtYAqfOtrHXxEadnqtLEXNgbHp2S/SxLK2sfHETmqLNRAqAl6e1htKr6SneBw4bJ09dS1LMlibXW+w8BfgeMrWytTeLyXYMA67DtB2g77/G2WwZVV3nW8h9IWqZCdTi3aNan1jtnITN0TXKVFI2ggjrGsRUr16JRRqBlVhsYAjqIvK5hzIiICIiAiIgIiICIiAnDfKLyi/B0fLtpqCBxq1NSXHQPK6jO5ng3yn4stUq69uJfuoqaY9kqx5nWqFmZmJJJJJOskk3JJ4ky2TIJi8iIkSbyICRaTIgRaJM2tLQNR6aPSZXLI7lRqChLXXOdRcXF11EXG0G8DUyJuH0CV/CC1VfoGdTlBbOaQBq2JItYMLcSbats12kMPzVarSvm5uo6Xta+Rit7XNr22Xgd98neO52jUotrNO1vsNfV2EGdzyRpZsPVpfmarIPs2DoOxXA7J5h8mLfjNUcaR8GHvnqnIj+m/34/wDwpQsVHQ6hb3/KFjbgb+UB4HrYznq1MqxU7QSO6dPpbHilRpki5LuANmslN/ZOf0qfpM1iMwU6+q27qm43GODLtFrMD0ywGlYaVXf8jtJHO+HY3FgyX3XHlKOi9z3zrJ5joLE5cbhzf6wC+Nv3xPTpiufIiIkQiIgIiICIiAiIgJ838tq+ezcRVf8AxHv7J9D6TrZKFV/Rpu33VJ9k+b+VxstuFNF7yT7ZV+OMlSmUSoSIvihcXXbwPsMsOpBsRY9Mv0SbXF8t7Zt1+F9l5fyl7JYsSbKALm+7KNvZNYztjXyJdxOGemctRHRrXs6shtxAYDVLQ2gbzsG89UikzqWmcQq5FqkLly2AX6tgtjquTlVVBOsAWBA1TDq0mU5WVlO8MCpF9YuDr2S5hMFVq35qlUqW282jPa+y+UG0CqppCqwqg1Daqc1QagHa4JJsN5AvbbYXvaY9eqXZnY3ZmLMTtLMbknrJiohUkEEEEgggggjaCDrBltjIrsvkwH41V/uT/mWep8iPqY0/9wfCjRnl/wAlg/GK54UfWwnqPI38hijxxFTwSmvshYwOWLfRYYf2jzC5U1GU0cqFvJa9usWmTytNxhR+kfEtMjTA1p1H1zcbcmMRV/NN4e+XVq1vzZ7xNwJUJVYFNcUz0mWyGmSQfrHaDs2eaJ6Lyc0tiWqqtZ1ZW1WygEG1wbqBwnK4I65vtEtarS+2vibTNZruoiJlgiIgIiICIiAiIgajla9sDiemky/fGX2z525ZvrcfpIO5Fnv/AC9e2Aq9LUh/9qX8Lz545Yvdm/vW/ZuPZKvxzMuU2III1EG4PAjZLcrQSI3LYmo+EJqVHctiBbO7Pqp02vbMTb8rJoVDTwxdSQ9SoadxqIp01RnUHaMxqpe25bbCb4zk/g1Lga2IPcmGA/emRUH4pTPCtXv1lcLbwHgZuJWMlQtQxKMSVTm6qXJsjGqlJsvDMtU3G8ovATBwteopPN1HTNqORmW4GvXlIuJmL5OHxDH+cejTXpyk1X7slO/214zCQWRm4ggdm0+zvkk2rGbpzVWsbnLSw4N99sNSuT2xptSpTD+ZSRPJF8vOvTV6rnixdiL+iqjdJ5Sa8ViANzsn+GMlv2ZXyj/6qub3DPmUjejgPTP3GXvhVnSjFqWGqsSXam6sTtYUqjKhY7SchVbndTE1bTY6VuqYamdq0cxG8GrVqVVv103pntmsaZR3nyUj6TFHhTQd7H3T0rki34nVbjXr+FQr+7POfkqXycW3RTH+cz0Lkrq0eD6T1j96vUMsWNfynOqk+6mwDdF72v2275f0piFLCxGpR43PtmToOpnOJv5uIZB+qie0maTSWEVq1Q284+Gqaja9zq8RHOr6QmEMCvCVjBLwlVssPi0U3LC3XO00Doh35uqxCpqZd5YbR1CefnDAUXsPOT/Os9c5Pn8VofYXw1TNZ5NhERMsEREBERAREQEREDl/lEe2EQelWQdwZv3Z878qnuw6Xc95n0D8pDfRYcf24PdTce2fO3KF7lOonvMq/GplYMtiTCMpa7FFQnUhYqLbC9i3XfKO6Z+jcYyXUZSr/WV1V0JAOUlWG0XOsWOs8Zq6G20yqRsRN8U3yqxvO1GBqWREFlCqqIoJuRTRQASTv37zMasQdVtVrAcBwlzEVCxt3CEo21nb6pcnxrxB2Z3eo58pmZ2OwZnYsTbrJ1S+ulnCqv0T5RZDUpU6jILkgKzqTYEmwNwN0xcQfN4bev8A22TDczN8eDVeJqszM7sWZiSzE3JJ1kkzHMqvKDMI9G+TAWw2Kb9NB3KT7Z3nJ820fh/0kU/e8r2zheQfkaMxD8ajn7tMTvdHplwuGp8KdMdygSxris8kTelWb0sViT2CqyDwWYWJ1u5/Sb1mVckNIUxh6CX8qqatQAAnVUquwJIGq95rcNpijVfIjgsb6r6zbWZqNRmgSoScsm0qq2X6Gp+r4Mpnp/Js/ilH7PtM8wdwKTjeV1dmuem8mP8ApKP2faZms8m0iImWCIiAiIgIiICIiBxHymVLDDDpqN91V98+etPnykH6E99+VNrHD9FPEnuFL/efP+nz9Iv2R7ZVvqNcIvKQZN5ETmMy8Pi12VB+sNvaN/Z4zCvIvLLjNmt3UpgaxYg7CNhlLNYX7pq6OKZdh9x6wYqYtjtPcJ07xMq5WaYrGQWkXnO1ovKTJvKLyK9L5PoV0K3F+et+sconeYypkS/oIT91b+ycbo2nbRmCT02o/t1gT4GdFykq2w2IP9jUt1lSB65Y1xa7kZSs9MehQpj9hf4jLmkKK/hlMAWsaz9wyf8As8Jlcl6dqtX9Gy/d1fuzV6SxRV1rnWFzBuIV7EkdRVey8003F4sJhaWqPhWVK4yM65lFwxy7ATlJt28DMP56T0vA+6FbbD0Q1Q34hR1WB9Z8BO/5K42zGgb2y5l4ajYqOzX3dM8vwGlFLnK19YbYRwG/qHfO35P41ecVhtBXXvKk7Oy575KzY7+IiZYIiICIiAiIgIiIHnfyrHXT6KGI8QvungfKD8qPsj2z6H+UrDXOHc/VIqU2/XCkeAaeCco8Gw1ka0JVuw7e+Vb6jniZF5JEpkRN4vMrRXNc9T578nfyvrW2HLmy68ua17a7Xm6NPBlrvUpAtSCEU1qBEqnPmqiy67fR22DWd41lkc1InQ89gwtMFFYoFz6iuYjDktYj62arq12sbbjMcjCeSFIIGQFmBBa1U52I3XQbODCUxpSZSTMrG81ZDT1XzFgdqk2spO8DXY8DMSRC8XkS/hKGd1T0iB37YHrlAWTR1Lhzd/1KLN6wJn8o3vRK+nUop9+sgPhearRdTnKpqeZSXm06WNsx7AAO08JlUlatisOljkWoarndakpygnpZl7pqN8fTaaCIVa7E67sT0a21d81WIphkI4ibXlHh0Wnqbm2dwSwtrsDcWO7WJz/Nf9z4LLGo1+j8NnBYklifKLEliRquSdZ1CZowPRNjh6GVEXMWCiyljc2LM1h0XZj2y+tOVWifDmmy1BsB8r7J1N3DX2TqdB1stRRxNu/Z4zFOHDBgdmU+qY+iKpKo32T6oR7hQe6qeIB7xK5YwH5Kn9hfUJfnNyIiICIiAiIgIiIGs5RaL/CcO9LY31kPB11r7uomeLab0K1Qsyraqvk1KbasxXVv1Zhs16j6/fJoeUPJxK/0qeTVA27ntsD+q/rlal+V8yaR0NlYjWh9FwR3XmvfRzjdfqM+g6VCwy1aezVrFxfYeqW6uisG31qNE/aRCfERh1fPTYVh5plBpHgZ9BNyZwR/o9LsVR6pZfkhgj/MJ2XHqMYdXgPNmRzZnvD8isD+ZH3n/ilh+ReB/Mr95/4ow6vDTTMpNOe3tySwQ/mafbc+sy03JvBj+j0e1FPrEYdXiuWdRya5OVXPOMDTXczCxtvyg7T0nVr3z0NNHUU/JUqan9BFU+Al38Dc7fJHFtXcNplxZx/WvCrTQU0GoCwHxtM3Gh1yLcggsNh2jfrmLgsCQzM7BhfybKRYdNybnffV1TNqNK01unMIMTXpc47rRW+cU8vOEWJ8gtqBJyjXuE5heTNbfUX7x90zNNUsVn+jRmH6JHtMw8PQxpYDmmGvaxUAdeuEdPgMIadNULFiotmO/WTMkLKkXUL7d8m0KpqHLTqt6NNj3AmYPJyiX5lANbMAO8TM0jYYerfeAv3iAfAzq/k+5OstsTVUrqtSUix1+eRu6O/hcluO6pJlULwAHdKoiYcyIiAiIgIiICIiAiIgaLTuEsQ487Uevj3eqeYfKIrU+bqgkAgqbEjWuses909lxtHOjL0ausbJ55y20ZzuFIPm1KbHoUOA/wCyT3SxqVw+h+UoSiqPo+nWYXvUerUVmuSRew1WBA7Jm/ypp/1WnZiaw/dmxTQ6C3x3SfmldXx3TTWNYeVKf1bbqxVT/TlP8p6f9XN/5bf6U2nzSPj2R80j49kDV/ymo79Gt/5R/wBGUHlJQ/qsnrxTeylNt80LHzOsDXYXlFQZ1RdHmkzkLzgxLvlzEa8hQAzerSEwm0IN2o+rgZmh/j2SC6tDyb9ZmBWY2JG2bNqgFG/EEDtJE0ekMVzaFpSNQlTF1HYUqVRrbcqk2mVhBi1qqK1Koinewt65rhyiPRNvobHGqrEjZaxtqPUYVspERA6nkRg1eozMoYIARcA2YnySL77AzuZz/IvDZaBb0m8F1DxvOgma532RESIREQEREBERAREQEREBLGKwdOqpWogYMCCCNoOoiX4gcPyg0XzD3UfRt9XoI80n1bz2TXL8fG6egaRwa1qbU237DwI2ETz56bIzIwsymxHVwmo3Kryj49nvk5RIHx8b5MCLD4+NsgyT8fG6Un4+N3/ECGb498wXo+UeBubdO+ZbfHxuHvlh4VhtNPpbSvNG1u+bvEqbZlG3d07xOdr6Tr5iOaqW/u290qsYaeB81T2CdFh2uikixIva1rdFprdGYuq9QBqbKu9iuWw6zNvaBEuYdbsJQZu+SWB5yutxqXyz1Ls8bQld7o7Dc3Sp0/RUA9e/xvMmImHMiIgIiICIiAiJF4ExIvIzQKolOaRmgVxKM0Z4Fc5vlZozMOfQa1Hljiu5uz1dU6DPBcQPOEeVZpstP6H5ompTF6Z2j0D/AAzT55ptdzfHxskE/Hxs6zLReQXhVbH4/wCfWZZcwXlDNAs4hMysoOW+w8G3Hq3dU51qWIDZDVphr2tmfb92dIxlHMU3YFlUuLBWPRsB6ZRZwdB0TLUILX2i+ocNcuy8yGUc2TCrarc2nofJLR/N0c5HlVLHqUfVHrPbOZ5PaK52p5X1F1ueJ3IPjZ1id6KombWOVXolrnRJ5wSMrkSjPJDQKokXkwERECgmUlpURLbLApapKDVhkltqUCTXlBxEoahKDhYFw4qUnGDjLLYKW20dAvtjhxlptJqPOEstoq8tNoQGBXV03TG1xOa0ni8HclamQ8FBZe7d2TetydQ7pbPJemd0GuHraapA2DEjjkb3Sj55p7m7wR7J3J5J0uEj+SVL0Zda7OG+d14r3n3QNKpvYDtndDklR9ASteSlH0B3Rp2cCdKJ6a94ltsep2MO8T0dOTVIeYvcJfTQaDYo7pdOzzihpapsyM/UrE+AmdQq16myg4HVY+OyegLotRul1cCJNOznMFWxCqFWmFA3X+LmbCnVr7wO+bYYOVjCyMsCm9TfaZCM8yRh5WKMC2haZCEwtKXFSBUsrEpAlQgTERApMgyIgQZSYiBTERAiJEQEREBERAREQERECYiIExEQJEmIgBJkxAkSREQKpMRAREQP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISDxAPEBISEBAQEA8QDw8PEBUPDw8QFRUWFhURFRUYHSggGBolHhUVITEhJikrLi4uFyAzODMtNygtLisBCgoKDg0OFxAQGi0dHR0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLS0tLS0tLS0tLf/AABEIAKgBLAMBEQACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAABAgADBAUGBwj/xABHEAABAwIEAgcFBQQIBAcAAAABAAIDBBEFEiFREzEGFCJBYXGBFZGhsdEHMlJiwUKCsvAjJDNykpOi4TRDc8MWRFNjg4SU/8QAGgEAAwEBAQEAAAAAAAAAAAAAAAECAwQFBv/EADERAAICAgEDAgQFBAIDAAAAAAABAhEDEhMEITFBUSJhgfAUM3GRsSNCoeEF0TJSwf/aAAwDAQACEQMRAD8A+NvSRsygpkECYI1QtWUmbQRpbEFFmqSLmRBTZRa2MIsY4aEgCLICxwQigshISpjM8zAVadENWYZIVakZOBUYFWwtBTEjYNBXRJ2JwKXtVWZNUImIiAIgCIAiALIwkyomprFm2bqIQ1Kx6ljSgaQ4lKQxuO5KhiOndunQmxOMd06FZBKd0UBOId0AAvO6AsGYoAN0hhugYpTQgJiKZFaOdlJVEkCAL4pFm0aRZcKhTqXuMKlGpWw3WilqPYnWSjUNidYKdBZBOUUh2HindKhgzndAClxQIIKBhKQCuCYmZpQtEYTRnIVmQEASyAIgCAIAvhbqpZcUbmwm3JZNnSl2IYXbIsKCIHbJWh0OKZ2yNkOiGldslsgoQ0rlWyJ1AKRyNkLVjCjclsh6scULkth6k6g5PdBqM3DyluGpa3DSluVqMMMKW4ak9lp7i1J7LRuGpxpF0HIyghUSBAFjGqGWiwRnZKy1FljYHbJbIpRZY2ldslsitWWNo3bKd0PVjigcjkQ9WWNw5yl5EPQsbhjkuQrQcYU7xRyBoMMIKXIGhY3BylyD0LRgyXIPQj8HsEbg4HHxCjyroxys5skaOa2Fzvutc7+60u+S3p+xzNlzcNnPKGX/ACnfRPSXsFoD6CZv3opR5xuH6JaS9hWjMUhhZzSA7mE0YOpWM5HVjid+OkbbksGzpSCaZuyLFQOrtRY6DwWpBQDG1AFbmN8ECFytTEQZUDGu3wSABe1MQBI1OgsdsrUqHY3Gaih2KahqaQrE6y1FCs8m4LqOIqIVEgaNUAjq0NMDzXPOTR1Y4o68VE3ZY7M21NUdG3ZTbKSL20rdglbHSHEDfBFhSGEbfBHcdIYBqO4diZm+CKYdgGVqKC0IZ2p0KwiqalQ9kN1xqNQ2RRWYlGxt33JP3WN+876DxW0MV92ZZMqXY4kmPvveNkUexyCV/wDiff5BdS7eDklJs3UfS6obYPEcje8GNrT6EBPlaFqj0EGLslZmZdru9l7j0+i3jOyHBBgxstPNaKRjKB2aeajqRlqYYpR3lzBmH73MK7T8mTTXg89j/wBn9M+8mHVDA8f+Umlac3gx97g+Dr+YWUscWvhLjka8nj4JjC90cjXMew5XMcLOaR3ELiyQZ3Y8io6AxTRYuJ0KRW/EihRDYr9pFPQWwDiJRoGwhxByNA2K3Vzk9SXIQ1rk9RbA625GobE605Go9hTUuRqJyAKh26dIWwwqHbpUVYeM7dFDsBlO6dCsTiHdFCszPWpzlJKZLA0oEjoUtTZYzjZ0QkbhillHGa8gwxfzS4x8g3tc+KOMe4DipRoG4pxN38lHGGwntF6eiFsA1z0aoewprHbo1QrFNS7dPVBZBO7dFILD1ggXJOnIblOMSZzpGGSQuJJNyVsc12Aut3EoCzTHyudFmy0WYbiFpbDQHl5haw7EOVs9BTUnFeXElkLGl8z/AMLR3DxK2TJas5XSWvOYxscWxxhoMbfu5zzbcfeI7ydLg+F4cmJo5+H9IamDSCUxjYNY7+IFGzJo2zdIhVECvY17gMrauCNsVRHtma2zJWDYgHZw7y78gk13RmdGWktuHD9l7dWvaeTh4FYTjTOuErViuBUlgyoABagAZUWArmIJYuRMVEyFADtYUiiGMpiYBEUBQ4iKQxxCUrGHglOwF4CLEYnrU5ykpkChMC5ihlosASNKGDUrKSLAxTZVDhiLGHhlFgMIilYDCJKxk4KLAnBRYDCJFgYqt/at3D5rWK7HPN2ytg2VEDxXvcn0CGNArZdMo9Ukgmx8BpxJURtdcNvmcRocrRc++1vVWlbJR6bpJigZBwYRkaXN0b4a3O/IK2xtnkaWF0sjIm83vAF+4nQn+dk8WN5JqC8swy5FjhKcvCVnqMcxSKlifh9NG03ZlqJXi7nEjX97x7uQGi9Pq82PBF9PjX6v79Txei6bL1M11eaT83FLx9/yVYBBTVkJpHMbDWjO+nqBoJjz4b/QfDTx+Y6iWXBPlTuHqvb5o+twRx548bVT9H7/ACONQOcyR0LxYguaWnm14Oo+a7JVKKaOaFxk4s6LgFmb2IbIFYpIRQWLmCKCxXOCKFYhcExWTMEBYweEUOycQIoVk4gRQWHiBFBYeMEUOycYIoLBxwihWc961MShyogAQIuiKhmsTQHKKNLHDkUNMcPCVFWMJEUFh4iVCsIlRQ7DxQigsnGCKCxTOihWDrCaQnLsc5zrkndamBdT1L2B2QgZhYki6d0AIjZSxopmNymhSNeDPyyE/kcPiFSEhsVlvbz/AETYMXAKhsdVDI6+VrjewJOoI5DzXV0E1DqISl4/0cXXY5ZOnnCPlmqhBkxHO2F9UBO+V0DWF75IwS4jL5brHr08mTIoum7pnR0iWOGNSXhKzR0iDoa4VTKaWkidK2SFkkZiuWZC7KOXeLj82q4seCccKx5Xbqmzqlljy7wVJOzP0pq4pK+WaA3jeY3g5S3tFjc2h153S6WEoYYxn5RfVThLO5Q8MzmoKuhCcYp0FkMhSAXOU6AUvKaoTFzlFCJnKBBzFAyFxQAMxQBLoGG6QyXQAExAeqMmUlUSRABBSGhsxUlWMHFAxg4pDGugol0CICgYwKRRLoAUoEA8imiZeCi6ZkaDVnhcLK2182a3aPqqvtQ2IwqRiPQgZbQu7fmCFaJQ9f8AqEMGZqacxvbI3RzTcK8WSWKanHyjLJjjki4y8M30OMPjqhV5I5JAS4NlDizMRYOs1wNxoQb6EA9yeXLLJNzl5YY8axxUI+ETpBjktZI2SbKC1mQNZmDQLkk2cTrrbyDQLAALNuy6MtdWvmeHyWLg1rLhob2W8uWw08gFEIKCpGmTJLI7kWZTspNSZDsiwoPDOyVjonCOyLCgGI7J2hUxeEdkWhUycB2yNkGrCIHbI2QasPV3bI2Q9WTqztkbINWMKVyWyHqxhRuS2Q9WHqTkbINSdRcnsLQyvWiMGUlUSRAFkcRKhsqMbNDaJxU7o142Wtw5yl5ENY2WtwtyXIiuMcYWUuVD4xhhRRyBxjDCClyj4xxg6OQfGH2QlyBoEYQjkHoZsToMkZd4gK8c7ZnljUTirY5TRNKwsYA0h4+87ucnSobZIAlQ0SRJIpsFNo9vr8irILq0aIBmBBJ0qLI/hxMgdLO5zWtay7uISbZQ0G5Ntu9UmvFAzrUnR6okkqI4sPqJHwECVgYS6F2W2V+nPvy8yqpewrPOVA7buzl7TuyRYt1+7bw5KGM9PQU7XQxu7yxt/Oy5JNqTO2CuKLuqtU2y6CKZqVhSD1dqLChXQNRbCiowtTsVIgiai2Og8NqXcAFrU+4gBoR3AcBqO4xhlSAJLUUAuZqdCPLuXUjjKimSEIGb6K2iymb4zsQuaudpnQjQ2RqVD7FgmaigDx2ooLQest3RQWiCqbuigtB623dFDtANY1FMLQvXWo1YtjBjdSHQkDcLTEviMsz+E8wuo4zVMxlmFhN7dsHdCT9Rya7UWxRdk+SqhWZ2hKhhZ95vmEAX1Y09CgGc5BJ6joH0lbh9Q6fgsllcwRQSvP8AwznOAdIByJy3H8m7TBn1X7SsQlo6eonpXvic3HYZJjE4tMjXUccgDrc2mwFjoVoqr6CPmv2vUrY8arA0ANkMM1hprJExzviSfVZy9Bo5FDiBbE1uwI+KwnG2dWOXwlpxIqNCtwe0inoG4DiRRoG4rsQKegblRrijQncHXSnqG4DWlGobimsKNRbg62U9Q3ZOtndGobh62d0tR7gNUd09Rbi9ZO6KFsZ3KzIpKZLIEwLY5CFDRcWXdYO6nUvdk6y7dGqDdjdZdujVD3ZOsO3Rqg3YeO7dGqDdk4zt0aoNyCY7o1Q9ycUo1DYnEKNRbCyEkEJpCk7RjaFoYGgQO0I1Tph2OtSQXBHgtUiL7nPLLXGxWRoZ5H2NwbeWmmyQGqp5IKZzAgg1YdQS1EjYII3Syv0bHGMzj6ISsGfT8T6a1jMQfT1OGMd1xtGx2HVZziSeOzIp2Pygamw5EaDXRU7VC9DxX2gOqzidS6vY2OqcYzJGwhzGNLG8NrSCRYNy96TGjkUrbhQ0aRZfwClRQmQWvmFuV7i19kUARFzsb25+CKAUgc7iw5m4RQALBe1xc6gX5hFCFyjU3FhzN9AnQWA23HvCVCsmUWvcW3vonQWQNFr3Ft76IAOUaajXlrzRQydnca+IRQrH4SBk4KAM7kElRTJIgB2BJjRe2JBdDCFADCFADiBADCBIKDwEDDwEBQRToAnAQBDAgKOa1vat4rRGLNjon5bs13HeqafoJUdrC4zZpcLHvC1Rm/JzsXiySOG+oWU1TNYu0ciQXUDN0n3R5BIo5rgmQd/oX0hmop5H00YknqIH0kRN88bpXNs+O37dwLeaaB+59jpsPe+tw6GQmrr8Fw2oqKjtBzpKuUN6vTlzjqWm5ufA96rtZJ4T7ccNljr4KiUWNTSQZu0CeNE0NkBA2u3XvUsaPFYU290jSJ1JYOyfI/JIs/RnsuP2wytyj/gnUnIW4gmDhpvZx9LIMb7UfJ+kwjYzo++VodEykp3zNtfiRtlaXtI77tBHqg0Xqe3pq6Q4pTvmbDUUhbX1VBXxNaAaQx36oQBzZpz1Nh42CH4Of0m6PiPBq+kaAJKjFs7DbVrJq4RxfBgQCl3s6lfHHLjWCzxtblinxeheAARmhikDQfEZXJCT7M59PX1MWJYFFM6I1FZBK3EpIoYnR1TW53QgPDbHL2r5LfeHcQmCXZnmegmIS1PSF0szmvk4dYwOLGMaGsa5rLhoA0AGtkFP/wATvSkMxCir5xFPJSYFVVs9VThnV6yRg4d2FoAd/akch94IJvsb6fB2Ok6Q0ZaB1upjEDrCzZJaYzRuH7496AvwWVta+CokbFlaKjpNR0s7XRseHwSYfCXx9oG1y0aix0QI+NdI4Gx11ZGxoaxlXUsY0cmtErgGjwA0Qa32OegDllJCZS5MgITGWRpFI1sKRQ4KAGBQA4cgBw5AEzIA00MGd1uQ700rYWdyGkjGlrroUFRi5sMmHQyXDSA4bI0i/AuRrycGspnRuyn0O6wlFxNYytHKmjs/zTiTI6UDTkJbq4DQbrZeDL1NOBVL3kh7SLd9rJwbfkUkl4G6V0xyskA/K5TlXqPG/Q8+yE7FYbI3plzh2R5IGc2TmUGbO90H6QMoK2OsfAKnhtfkjL8mWQiwkBsdRr3d6aCrOt0w6dMrAeBRRUMr5eJNUwyl1RMCDeN7w1pLSSDY97QhsSR5/Hselq+rmbLempYaSMtBBdHGXFrnkk3f2jc6eSB1QmEXLiB4FJtLyXBN+DumMkWtzFlO8TTSR9IZ9pZEpf1d5Z13rIbxBcR9WEXC5c89338bJbxI4WeVr8cL/ZhbFrh8UTC2QhzJyx4fqLaNNrEeKOSJaxPud1/TWJtmU9G+OEvrpnsdMHnj1LHNIZpZrBnJt8kuSJPDItqPtBEpaZaZ7gPZjrCQf2lJK6Yu5ftOcPcjliPgkV0P2gycSGSphMz4K6oqozHw4bRSwSxcE5Wi5BlvmOptqlzRDgZxsKx7hHBSYnO9kipDrOA4/F5W07NvVLmiNYHTMvRSv6piBrXRuka4VAMbXBrrS377d10udFPC2jvHpgY4TDRU/V2x0raWkdI5tS6NplEkznh7bOuA0AW0tfwBzoS6dj1/TN0lnthc2Yy4bPI/OA18lKTm0A0DxYW7glzoF07NJ6Xwvklllo5JCcSixKACfhiOaOnjgYHEDtDsOP73gj8REPwzPCV9K+aaadws6aWWVwHIOe4uIHhql+INOAp9lFL8QPgM3sbwUczK4UD2H4J87DgQwwIbI5w4EWMwQbJc7GsCL24L4JczHwIcYL4I52PgQwwbwS52HAhhg3gjnYcCHGD+COdj4EEYR4Jc7DgQww8sBIWuHqPi7kZcHw9iiSUgEAalepZ5jQMHoiwl7jcuNynGNEyZ26ijbK29tQs+ojcLRr0z+Kmecx/C8jWyAcjYrz+mzbS1Z29ThqNozUC9OJ5shp8TfHM1hYS0kAOtzvsk5NOhqPaz0whEkZa4e9VOO0WicctZpmZuDN2XgvK06Z7ixJqzy+MQZJZGbO+YB/Vd+GW0EzhyxqbRw5RqVqYM00kMRjkL3lsjQeG0C4cbaA6brt6fFgninKbakvHt9fqCqmacDbSkS9ZvcNzR9otBsDdot+1yXBJP0PS/45dG1P8AE+UrXf77leBxl8jmNibM58MrWtfazSW6PB7iEpulbdHh9XKMYKUpOKTX8+Pqbuhseaocw98Tj6gtWPVOsdnpdIrnXyPcDDhsvO5melxoIw8bJcrDjQ3s8I5WGiJ1AbJcjDRB6gNk+Rhoj6Bgn2ZxGNr6pz87gDwoyGhl+5ziDc+Vl34+m7XN9zzsnVd6gjRiX2ZU5YTTveyQDQSEPjcdjpceevknPpVXwsUOrafxLsfPZsOyOcxzcrmOLXNPMOBsQvPbadM9FJNWhBSDZG7HQeqDZLZjoPVRsjYVE6sNkbMKJ1YbI2CirqoV2OiCmCLChurhFhROr+CmxjCFKwoYRo2ChhGEbDobhhKwonDRYUThJWOiGG+iSlQUcKqp8jyPcvf6XLyQR43U4tJFka7DjZvpSnVqiU2nZZXUgkjcz8Q08+5eB1EHgzbLwe7iks2KjxdKwtcQdCCR6hexjkmk0eRkjTpnQnqCyN0gaXluoaOfmtW6VmZs6O4px2l2UtLTY35IhKyZKju2Xjf8jg0luvDPY6DNvDV+UeG6Wx2qXfmax3+m36LTo3eJGfVKsh5mXmV0nKzThtW5jJogG2mZlNxci1+XvXo9FncY5MS/vX3/ACEX2a9zpdEcfbRvlc+PiCQQjIWNdbLK1znBx1a4NzgEHmQTyXEm4tohqzJTYm5tVLVsa1hc6Z+QDsM4hJygbC+nkssi27M5+qxRyw45erNvQa/XWndkt/ddc/WflP6Hp9IqyI+lALxz1ggIENZMCZUwN2BxA1dMDyM8V/GzgbLTEryRXzMszrHL9GfQenVU+OjORxaXyMYXNNjlNybHu5WXp9XJxx9jzOlipZO55/od0iZC2VlTK7KS0x3D5Lc8wFr2HJc/TZ1FNTZ09T07k04I4fSWojlq5ZYjdjy0g2LbnKAdD4grDO1KbcTowRlHGlLyjm5FlRqQsT1FYMiNRkyIoVg4aKCzPZOxksiwIlYyJWFBslY6BlSsKCGpWMbKiwCAlYBRYyJWFGLE4MzbjmF2dHn0nT8M5upxbxOZEV9AnZ4klRrieqM2boXrn6rAssPmdHS5+OfyPPdIaTJKJQOy/n4OC4uhy+ccvKOvrMXfdeGJSv0C9VHmszV2OGCZsfCOU5e0NL323UuVOgUbR6ymdmA9CEZcSywcX6hhyvFNSR5Xp1TEOil7nNLD5tNx8z7l5HSp43LG/KPV6mpKM14Z42QarrOMUaahVGTi7QiyR7XDUWduOS6J5oZI/Evi9ynTA59xlAsPmuUxjjp2+7PTdAKYmpc/uZG73usPquLrZVjr3PQ6SPx37H0Cy8uz0g5UWBMqdgENTsR0ej7f63Tf9aP+ILXA/wCpH9THP+XL9D6bjlBHNG1szssTHiR9zlBABFi7uGoXsZYRkql4PIxTlF/D5MwwOhlj7EcLmHQPitcHwe3vUcOKS7JfQvmyxfdv6nzrFcPMM0kJ1yOsDu06tPuIXl5IuEnH2PVxT3gpe5nEamymHKmIfKFQgEBAC2QBz1mahCQEskBEhhQAVNjJdABukBEAFIZEAQ2QBxKyDI/TkeS9/oeo3jq/KPI6vBq7XgEbl6SPPaNUT0yGPVRCWN0Z5kdk7OHIrzOqwOE1mh6eT0umzLJHimeZpSWuLHCxBII2IXbimpJNHJlg4ujqufZjnBuctaXNb3kgcgtjBmXo3jbp3uY6MxuaL99vLzUwm35CUUvB1OkNM2SllD9MrS8O5lrmgkH9PVcvVYHsskfK7P8AQ6umzLV45ePT9T5jINbKCiuyBESAthhLiGtBJJAAAuSdkmykrPp3RfCerQ2d/aPIdJ4bN9PmSvG6nLyS7eEergx6R7+Wdmywo2DZOgsIanqAzWFUoknRwEf1un/60f8AEFthX9SP6mWf8uX6Htund+qADvlYD4ixP6Bej1f5Z53SfmGL7PbhlQDyzRkDxsb/ACCz6NUmadb5icfpiz+uyHwj/hCy6lf1GbdK/wCkjilYUdBAgAFviqoQrgN0UAmTxSodmPKs+xqApNoBbqW0McBHYA2S7DBqkAcqXYCEI7ACxStDDqjsBLFHYAWKXYCuogztIPoditMWV45KSInBTVM5BYQS08x8Ruvo8GeOWNo8TNhcJUWMXRZzNFzHKvPYXjujm4rSkyNkaNX9l394DQ+75LBY9PHg35OTz5LaUm2q2RzyRca2Nn3nsbvcgEqrSJ1Zy+kGPRup3xxPDy8gOI7m8zr6Aeqxy5FrSNcWN7WzwzjcrlNyAIA20sTe9mb94tCY6PcdFsJyjjOaGEj+jbrdrTzdrc6ryusz7PRfU9LpcNfEz0gHiuCzsGyp2IayqxUMB4p7CLPVVsKjZhUoZPDI46Mljc47NDhc+5bY5pSTfuZZYtwa+R9D6TUD56csjsXhzXgE2zWuLX9V6eeDnCkeV0+RQnb8GbojhckDJDKAHPc2zbhxAaDzI81PT45QT2L6nLGbWvoeV6UTB9ZMRyBay/i1oB+N1yZ5XkdHb08axo5JyrKzYDQPIIsGQ5dwnaCmHs+CLQu4w8NfRMDlNBXKbkKLACQyZkrAN0rGDN4pADiJgK6Yo7AI+VydICozPRSFYhqHo1QWDrbkaILEdXOT0QWYK2vvraxHIrp6ebxytHPmipqmPQ1rJdAQHjm36L3ceVSR5OTG0zWdFtZi4i8ZuZod3l1vMMcQPfZKUhwj3OH0ghmeI44iGtczM55dlG1rpTvtREfLOb/4biawyz1YsBq2Nt3E7Ak6n0XBkyZVKox+tnbDDDW5S+hwpntHZZcNF7XNz5k7rTyZ9l4KWp0I6GH0D5HBrGlx05D57JN0m34Q4rZpI9tgvRkR2fNZzhqGDVo89yvK6jrXJaw7L3PSw9Io95HpAzxXAdgcoQAR5o7gHLdOmFjMjHiqSJsuZG3zVpCsfhN8vM6KqFZ6LCulEsTAwhkrGgBuZ+V4HcM23ouvH1Moqn3OPJ0sZu12Lq7phI5pDGsivoXB+dw8jYW9yqfVyapdiYdHFPv3POOeO7LrzObVczZ10Fjx4X96aYNBDbnlbxsU6b8iLDS35AeHYcf0VaWLaidTcBsB+R30Rx0LYqdAfxEeUbknH5jv5HKFuWYe4rmNyPA7yPcUmABbe/oUhhGXuPwKXYA2Hj7ikMWw7gfckAbDvafcgYbC18pS7gNp3tS7gAgbD3hHcAODdh7wjuBX2Nh8EWwEfFGe4fBUnIVIzTUEZ/kK1KRLSOPXdHgTmYcrhyLTZdOLqJQZhkwRkYnVdXDo9jZ2jvGj16OPrYvz2OLJ00l6Wc3EukTXty8N0UgcCCSdCPC3munk2XY5327AGPNfCYpR2mXdC/mA78Lh3tK0U01TMnFp2jz1XWSPN3uvtbRo8gOSyZWzM+ZIVl9PUZTfI157s+Yj3Ai/qk1frRUZV6Hqei1e45YWtsM/FledNAbhoGynqMqjhcV6l4Me2VS9j2zJ78v1XgvGz2d0XBx2SUR2DMdvijULHbe3Jvv1+aeoWWAHYfz6qtWKxgx2wHqPqmoMWxaxhHcPc36qlCvtCci1ocdPkyP6qlGT+0K0bGQut97ls2PT5rRQfv8AwRsiGnk0tm17zwwPgEccvug2QklA/R3M/wB8A/BqHhfn/wC/6BZENHQyX0u0n/3Tp7mJrDL7f+g5EafZ8oF3SHXleSX07hdXwSru/wCSeVeiKn0pGrpYxv8A0kgt73aqXir1/n/se9+gRh7XD+0Y7uuMzvjxE1gTXlff1FyNen3+xPZDD/zmjusGNP8A3Efh4+6/b/Ycz9jjuazuab+EzPqub4Tp7lRaD3O/zWFS0vtjsdp2D/8AMZ9UffkBR4F9/G31SpAKHa83fD9CikAef4z5C6NR2JJfeT1afqpcH8wsTN+Z3uNka0MRzvzH1aUtQELtnfD/AGRQE/e+H+yOwE4Z3HwQAzYTv8lSaJYwgK0TEK6nO5+CeyCmZZ6d3j8EtkFM5lXhweLPZmHi0FCyOPhkyxqXlHnsVwIAf0bXX2BFviV2Yeqf9zOTL0y/tRwzhU//AKbvh9V18+P/ANjj4MnsVyYfK3mxwTWWD8MnhmvKBDBr2gfknKXbsCh37nrcCaxjSWDLuRzPmVyZIyl3bOvHrHwjssee5x9/+65GjoTL2yu/EfeD+qnVFbMsjmO594H6paD3NDZ/F3+IfVGnzHsO2W/7Tv8AGPqjT5hsXMk/O4f/ACNH6qlH5hsWtLfxG/f/AE0YVar3/wAi2LWuH4z/APoj+ieq9/8AItvuhSxl+YO5NQwfoUaR+2Gz+0Nw4/yD/wCwD8o0tI/L9w2f2gsjjNruZ6yu/SPRPSPy/dhsy3hsv/yz5zONv9KNV8v3YW/tF5DSLOdE7wdLM4D4K3FPzX7sm36fwgBsNvuQ35XzzhGkPZf5C5fdB6tDb70Xpxj+iOKH3Yby+6AYoPxM98v0S0h8v8j2kf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExIWFhUXGBgVFxcYGBcVFRUVFxUXFxUXFhcYHiggGRolHhcVITEiJSkrLi4vGCAzODMsOCgtLi0BCgoKDg0OFxAQGislHh0tLTItLS0rKy0tLSsuLi01LS0vLS0tKy0tLS4tKystKy0tLS0tLS0tLSstLS0tKystK//AABEIAM0A9gMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAwQFBgcCAQj/xABKEAABAwEFBAYFCQYEBQUBAAABAAIDEQQFEiExBkFRcRMiYYGRoQcyQrHBFCNSYnKSstHwFTNDU4Kic9Lh8SRUg5PCFjREY6MI/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAeEQEBAQACAwEBAQAAAAAAAAAAARECMRIhQWFRA//aAAwDAQACEQMRAD8A3FCEIBCEIBCFy94AqTQIOknNO1mbnBvMge9Vu8b/AMcrIYjQOdRzhrTfThzUjFYWDPCK8TmfE5oHLr2j9kuf9lpI8dPNcG8Xn1YT/U4N91V21gXYCBuZpz/Lb3Od8QuSyY6zU+yxo99U7QgZGyPOs0niB7gvP2eN75D/ANR/5p8hAx/ZjPrfff8AmvP2XH9b77vzT9eIGH7NbuLx/W/80fICNJZR/W4+9Pl4UDL5PKNLRJ34Xe8L3HaB/FaftM/ykJ2VyUDf9oTt1jY7k4t94K9F+AevFI3tFHDyNfJKOCQkagdw3zA7+IAeDqsP91E+a4EVBqOzNVuaAHUKMtsRhaZIiWOGfVNNOI0KC8IUHcG0DZ2gOo19O49oU4gEIQgEIQgEIQgEIQgEITW325sQzzcdBy1J4AZZ/EgIFLVamxtq4/mVSr7v10poDRvBI3veTpCan4eW4dn+6iHFVqQ/2dFbS3sV8VH2Ub8/X9aOV1L1EpSqKpEyLwSIhwCvUi16UBQdIQhAIKEIPF4V6vCg5XhXS5KDgpJ6VKSegQco+9m1if8AZPuUi5MrxHzbuR9yCm2CUgAg0V1uHaHFRkpz0DvzVFsZyCeRuVaaoCvVUtn77Iox5y3HgrY1wIqFGXqEIQCEIQCEJG2WpkUb5ZHBrGNL3OOQa1oqSe5Ahet4iFoyxPecMbK0L3UrruaBUk7gN5oDUbztDjXE7E45udpU7gBuaM6DxqSSWWyl7m39NeDhQPc6GztP8OzsI8HPcC53HC0eyF3bnZqrDCQpFyUeUi4oqa2UykJ5/h/1U5NeLRvVWs1r6GCSTfQgcyQ381W5b0ed6JjQpL3bxXDL5bxWcutjjvXHyt3FDGqQ3o070/htrTvWOC3v3OUjZG2537uOc9oY+njSihjXWSgpQFZlDZb1Hsub9p8TfxOT6E3m3WaAfakj+CGNAQqZFbrxGs1iPN5+CeRXtax6xsR5TPb/AOJRMWdclQ0V8y+0yD+m0tP4mBO47zr7HhJC7/zCB6VyVyyYHcfCvm2oXdECZSb0s4JF4QIOTW2Dqu5FO3JtaR1TyQUGyaJ21M7Nv5n3p21Vo6hcrZcV4mmEqoRlTN2uzQq8NdUVC9Vfu++WttPyZxoXR9KztAdheO44fvjgrAoyEIQgFj//APQ20jorPHY2GhmJdIR/LZQ4e9xb90rXpH0BPBfM/p6tBdeEYJybA097pJCT7vBBovoujw3TZ+3G7xkcU9thzSPo9FLqsv8Ah18XEru2HNVqGbyk2sLjQJRrC40H+yTvS9obIzrGrjkAM3OPABB1fNle6NkUbS41qdAAADm4kgAVOpPBRQuSn720Qs7ATK7+wYf7lD/L7VaS5+YaNw9Vo3AneUibLIdSUE90ViZ60ksp7MMTT3dY+YR+2rKz1LLFzfilP97iPJQbbtclBdZQTP8A6zkblHhYPqMZH+EBNZ9q5n+s955uJTMXYuhdvYg8dfrzxXBvp/alhd3YlG3W46NPggZ/th6P2u9SAuWT+W77pXv7El/lP+6fyQR/7Yf2r0X0/tTt10SDWN33SkXWEjVqAZf7xvKeQbYTN0keP6io82QcFwbGOCCy2f0gzjV1ebQfgpOzekQH142nlVp+KopsYXBsSGNSs22NlfqXM8HDyofJP22+GQdSVh7K4T4OosbNkPFehsjdHFExZo5KPeDkQ5wociKE6p6wqn3ffZs8hM0XTRPpj/msoKY4z7x+jcWRNdGJ7PIJoD7Q9ZnZIN3P3IpaMqXu45qFhfVS93HNBX9u7YYLyuqUEir5IT2iTAzPsqQe5atd8+NvaFi3ppl6N13y/QmLvAsd8FrV0yUUZTKEIQNbxfRtOPw/QXzD6aZa3m8fRjjHli+K+mLyOdOz3n/RfLXpYfW9bT2GMeEMaDadh8rrsn+C0+Oa4tHWdQd54LjZ2bo7tsjd/QR/hGaiL3vXA3CzNx8zxKqvb+v9tmbgjGKQ6D4k7h2qGuHZ2W1P6adxw73Hf9WMHQfrMqT2b2X6Q9PPUg5gHV/Dkz9dqt0hyoBQDIAZADgAgZugYxgjY0NaNw954ntUe6zCuil4rM55o0VUpZbiGrz3BBVmWSuQFU+s+z8j/ZoO3JXGy2Jo9Rnf/qnzLEd58PzQVKDZVvtu8E+huGBvsVPbn5KyssrRurzzSzWgaCiiIOG7GD1YQP6aJ02xO+iB4KTQgjhYnfV/XcvfkTvq+f5KQQgjjYncG/ruSb7CTqwHwUqhBXZ7mid60DeeH4qMtGylmdoC3kfzV1XLmA6gFBm9r2JP8OQHscKeY/JQVt2fnj9aMkcRmPJa++xtOlRy/wBU3ksbt1HDwVXWKujXJjWoXpcTJNWgO+sNe8Ud5kdhVPvW4TEc+pXIYiMBO4NlybXscGk7gUXVWtNmDgo677XPYJums5yP7yM+pKO0bndqsVpsrmHC5pB4EUTOaEFBa7vmhtsXyix5EfvYPaY7fhHw8OCfXTMDSizSB01jmFosxo4es32ZG/Rd8CtGu63R22P5XZhR4/fw+0He0QPpdm/XXUipenof8NZj/wDY4f2f6LU7hmxRxu+kxp8WgrK/TdKH2KzPbmOl98bvyWg7Az47FZHbzDFXngAKiLtE6oCFxZTkefwBQgZXiese5fK3pCrJelpDRUmXAAN5ADaeS+prwdm79bgsJ2JuFtqtNpvKWohMsj2k6kOeTRtfaNadgr2ILIyUthjxZNa1rGje4taBQfnu5kAuNn7l6Z3TSjqDQbnU3D6o8/Fe2Sym1T5jCxo0GjWDRg58eZVtIAFBQNaOQa0bzwCKSlNchyAC9sVk6Q5ZgGhPsgjUVHrHlkN5rkkbtYbVVzatswqMWbX2gjI4d7Iu3V3YFbLJYhQZYWgABoyyGgoNB2IG9ls25o79B+uSfxWQDXM+XgnDRTIL1ECEIQCEIQCEIQCEIQCEIQCEIQCEIQcvYDkRVNLRYAQQKEEULXZgjhn8U9Qgz++Nm3xgmztDmjM2WQ9T/oP1iPZXCqkIGy4uixBzK9JC8YZo6a1b7Te0d4C2qSMOFCFTtstkhPSWN3R2hmccreqSRo15Hkfhkis4kiTSxTS2OYWiz6+2z2ZG8D28CpezWnp3mCZoitbSRuaycjs0bJ5HckJoSCQRQjIg6gqq99JzG2u7PlVlaXR42vlYNYX5hziNwzoRuOehNLL6ILZ0l22fizFGezC8gf24T3qB2etYs0pxDFBKMEzCKtLSKYqb8jQ8QpHY67/2Zb5rEDWz2gfKrI6tdKCWOu9wGHuaDvUZarZd/d+vJC8spzPIfFCCF2jsz5opYo3YXyBzA76GIYS/+kEnuVPvwRwRx2SAYYomgAcTxPE71fbYaBxGriQPFUu1WTHbA32WgOPaAK+ZKLD+5bD0UQFOu7rO79B3BQVqvFtstLbK13zAJMhGRnLQTgB+jkfAngltvb7MEQhYfnZhmd7ItD3u08VXdhbALRLV37qI45N2I6sjPYaYj9UAe0g2S7bOMLXYaNAGBtKAAaZbhwCkE2sVoDgM+ScogQhCAQhCAQhCAQhCAQhCAQhCAQhCAQhCAQhCAXhFcivUIM29KWzIewWiNpxs1pmXNGf3m6jiARuCrNz275YzA8/8SwZH+ewDzkA8RyWpbTTxuidE/NrwW0BoftAjMUyoeNFg1sjkstocwOo+NwLXDL6zHgbg4buIIRVjwqbjxTWQYATaLE8WmCnrPY397CPtML207W8E0mkbaIWWtgpj6srRoyYet3HUc1NbJNIxPGrHAjtBFHjwAPcqq8XRaWytZIwhzHsD2kaFpoQR3FCbXNZxDijb6gJMfYx5xBvIHE0DgAhRl3bD1qcAfFMY7IzGZTrQNPCgqfindrPXdyUTtHOY7HM4ZHA4Dm7qj3orH9qr06eaWYnquJp2RMBpT+kE8yr3sBYTFd2Nw68zTO/m/FhHc0MHcstvo9QgadVvc57Wnyr4rVLotxF2yOPsRyADsZjp5AIJDZ++ZWUxMxQ19dpBdHwxN1w657uXq3yy2kPAIINcxwK+cLptVpZE2eJ7ml1TUHUA7/JXHY7b4l4imo1xNA7RhdwcPZrxHgg2VChro2gimLmYqSMNHsOT2ntG8doUwCiPUIQgEIQgEIQgEIQgEIQgEIQgEIQgEIXL3gaoOlDbRX7HZojI91AMsqlzidGtAzJOmWqZX3tTFHiaHCoFXbw0cXU76Df3LMr62itE9JYqNGIhrjTpdB1mg+qDXdnkUXC1kvy02i1udPEYmPDTCx1MVBiJxgGrXUNQ0gZV7U19J1jAkgtDRTHWB/MUfCfHEO9Q9mdIy2WZ0jyekeA6p63rYSc895CmvSy7CxrWmtAXgni3oyPeUD/0fSMwCJ3q2jG0g/TaC5tOGQPfRXi67A2BuFpJqaknXh8Fkl2WkwugcDkJWyDPd0jmnyatnIzVEhZ/VHh4FCLGMvH4IUQ2t+UnMH8/goLbL/2MvIfjap+/m0o/gQfz8qqKv2DpbLMwb2Op4VHuRWDXnnBKd46M/wD7NHxC0DZ2bpbttLQc8DvF8WIfiKojG4hJHpiY5o7HHNp7nBpU56L7Q4QWqNwIFAc+OeXZQECn+yCGu282sijhdHVoYKkEh4caFxG7U003JjfLGtAka6oJoDodNHN3EeBXc0Qa8t3itctKmoHblRJ2qdjI5QdXMo3KoxYmnuyB8OSaLI6+HSWVs9D8os2BkrgSyUwuOGN4O8g4QQdcVahWXZj0pOBDJfnBxphlHNvtd1Vnl33q1zXOdk51nls7wfarhdA4cesOYpwzUZbrG6NxZI0hwJGfEHcd/cpqa+obq2ms84Ba8Z7jlnwG49xKmWuB0XyRZL3nhNWvJ7CTUjhiGZHYahXC4vSlLFQPxd+niAQPuBU19EIWc3N6ToZAMTh4V/BiPiArXYdpoJfVe0ngHNJ+6Di8kE2hNhbmbzTmCPelG2lh0cECqFz0g4hGMcQg6QuTIOISZtTPpBAshNJLwY0VJy47vFQtv20ssVaysqNwON3gyp8kFlSckzWipICy2+/S3CyoZme0hvkKu/tVHvP0iTz1w1p90eJq7wwoNrvja+CAetU7gMyeXHmKrM9o/SHLLiEYcGjXBmeAxvzDc8vaPJRNz3Q60YDaHuAkI6vqsLSaBzyDieN+ZSdtt2GV0LGNFmjnax72tqHBsgd6wyFcFab6LPl/GsMr+vBwaIKirT86R7UgpiBOpo6oqczhaqxelsxOc60PdQk0iYQHPprjOjGVqKZnXLei+3lssoDg6ssjsbTiacTy7JwyORUFbX4pHOpqSfFVnVm2ZtLJbRZwyJsZZIwAAucSwkuOIuOZBb2esVZvSzah0rWB1SITUcMRZTyCq+wNnBtMTgcxjJHAAUae8u8lKbbsMl5yfRxMZX6rG5/heEU7ZAOjDiTXGWgfZDD73LdRu5D3LErmgMs0cetZGinaSMR8h4La7S+gNNdBzOQVEtdwqAeyviUJaxMo3lQeH6KER5b4MbCFAWB2RYdW9XmPZ/JWhV6+LMY3iRoy3jiN4RWIbS3d8mtj2HJuIEH6jjX3JK7by+Tz5/u5GyCQ0NGEux46721eeWLsyvvpKuUWiISt1pkfOh9/3uCyKG2ENLCDiAex4NAQC5oJqT6wIH3SlEhfczWz1PtUFdxOoHPWia21zejc3LE7Dhy4PGKh3Gh96YWgvkdLG+jg0ANAyIaaFuE8AOIyyUjJY3shI/eSYmsBANWNe2pLxnyr2LNrJG6bEHxukJcejZmScmkuwQMbnrk404N0oKm8bH3A63RvktMoDTUNdQFxcDQukrlSuXHlvpwt0kVndZcLWtL2vcR6zixpDajdmSe2jdBrr/ongifZmjD1XY+q7OvWz81y5bn78YnLlwtjM9utkX2BzCcJjfUNc01FRnocxlzHaqyIwVsvpxsjWwWVrRQNL6DsAaFjrFrhbmXuJx5+Vs+zt1HZW8lJ2V8jdJHcj1h5ppCn8AXR2Tt13raGerKRyJb+EhWWw3/aSQDNrlV5yHMurRVW72gkAmgJAJ4DKpUlaXtDpw6CRscYJNXZtOIBo0zzIbv1ruSrItUl9TtBpPA8j2WdHI/ua0VKhLbtBetaxgU7YBXzYoq67TLI4ULYomgupXo2AAe0dTnTjqpC03pa3RPcZYnt9VwjqHCoOF4NcgHBvjRT21keTXxeYFXW6xspmetG0t+1SPJQN87S25oA+XxyYq/uZXOApT1gwtpr5FPn3zMyOI2iFr4jVokc1r5MZLusCc6AYRQ8NRWqgr4sTXvkkZGGPHXexrcLS0gFz2t9kZ1pwI7VmeW9tXP4h7belqkPXmrzGI/31TGQPd68j3dhJp4DJOnpMhac6RZABoAnEK4K7g1Ri3PbSbg2XtdshjklnZBZsIa3DnI5gJAy0ae0k8lXdo7idYpuiMjnwvcXjOhOE0djAyxgO1313aLZ9gbEx132bEAcIJFdKhzgs/8ASw1lYsqnFIAd1Opir5Lnxt38vTnx53lN+WemYXnYTE/oiTiBdibXqkgVY9tDmCxwINORNcoe82VkcW6dXsA6oHvBVmv28JZ3NkcGY42NGKmcgYMIr2kUy3mpFK0UTbrPjDpWtLQCKt3nkeZ9/ZXfHfrU2T2f7CW5kMz5JCGta0OJ5HQc8k4s9sdPJJaXCmNzsDeAJHnk3w7VXbMwkUNQ2oc6m924Dtz7qqfuuF072RtGW4DhvNPAAcadi1G40X0aXZimMpHViGXa92X5+C0VjccjWj2cz9rd+u1RtxWEWWztYB1jme1x+A+CstzWPCMR1Pv3lVUixtAAhdIRAk54g4EFKIQVO22TBijePm3f2nc4d+f6Kxf0h7KPjkL2irqez/FZTJzfrAZU1IFNRn9HWqzCRtCqlfV0AsMUoODVrh60Z3Fp3jT9UoV80Mt0uMytd16Gpo2jhQVqKUrkPCu6qsEzxJE1zi3psRYWginVY00H1szl2ZV0U5thsfhd7LJneq/1bPaq6VOkUx7muOtCc6JeDHh7myhzXggPa4EEOAp1hxpv317Vmz2zk7O3Glf1xWg7EW6WOGcY2/8ADvjY0tNWkSGQuqd+YGY/2zEWt1Osa9p17zvUxYr/ACzpWxEtikcHFmRcMNcPrDrUBOilkvbNkvaw+kHaWa0vjikADYwS3MOLg/IkkGg9TT81VWL232sSvDhX1QDUUzBO7kQuI0kk6OPCTc+nsKfwKOhUjZ1p0Tlz4ukZhpixNw4sm4iQG17KkKWi9H8xfIRa83YwSYya4hR1SZM9a6aiqjLicBNGXEAB7SSdAAQanwWltv6zNcWmVlak6jfTTs0UrUZtc9gbZryhgcDJIJI6vJIbQuBGFoPYNSdFq17wStge/wBnopSQQM/m3UrTMaLNpLZE6/GOBD2udEGOaajFiaCSa7qPHgtZ2htDBZZtP3Un4HV5Lhyt17J48Zw9d9sHvG9nSwwMMWBrZGlppVry49bMuqB2U4Zqyu2bdEyS2/L3SRiNxdG5mEOYQQWEYiAKe4Km2+8zIyCINDImShzHEuqQ99esT1chqQcu9Xa3bRWY3daIOlYZOhwCgcGF1DRrXEUc6gPfvK1t9OX+nGS3GXuSZXTlwSurjXqGOoVySvKo52NG2a27fDALO5rnBtejwZk1JcQ4d5zG7dxiNqbdaJi10rAxoq5rfaAccNX578OXJJXRNZoohK/97icAMycOEUoNB7WqZbQbSRWicSPaRhh6JjWULsbQ4xl1cqEuFaLMklZnCcZ6MycikJbewRUaSXlw3AtaGkHQ5OrSlCo2SZ0hpu4DTvT67LsfK4tYASBVznHDHG36T3bh5ncCVqzTslBG6RwyLnOOQ1LicyfeSSte2A2YELOmlpx5ncB9UbuNTxoE9jtkWRtEjwaHV7hSSXsa32I+zU6ncBo133eXkFwwtHqt3D/Vaae3bYzI7G4UG4cB+angF4xoAoNF0gEIQgEIQgFxNEHChFV2hBWb3uIFjmlgkid6zDpzH0T2hZptNsbVuTHTxtHV9m1QN4NdpJGOBqPs0W4plbLsY/P1TuI4/DuQfLX7MfZ39K1onjbixUFHNDmFh6SM1LaVJrmMtUyFms83quMZO45juX0Jf+x7JDjc0h40lj6rx9rQO8j2rO9oNhXEkuiEu/pIfm5+b46UfzLTzWbx33Goze0MdG8sJDqb+Yr8UrDID2c8k+tOzcgPzbxJT2XfNS8qOOE9zu5RdpjdEcMrHRng9pbXlXIjkrIiViFNclIWZV6CdzfVcRyOXeNCnsN6SDXCebQPNlCqLlckWOVragVJzIBHq8CQPNJ35szHNiIBxsJaHBp6N1Do9wOW/SuvaoCG/wAt/hNJ+q9zPgVZLqtUkrBI2JuF1fWtMLTUGlS17mnWuozWOVk7rfHfiKDY4HQiSz2gTsDBG6MAwOId1ToXOzyNCNDku7ZtjbZBJAGsfk5jyxr3dX1XObR2QzGZ4hSW0FrtAjxk4AzDQxzwPLcwBhYySuprkN5VaN8vZ0j45pGOeQSWtAIAqS0dfIGo0+iFmZenXyv09vO1ufZrNBIx0LWYfnHUJcBGGksZqaA51yzoaHJdSzWUtMYuyaIUdST509HUZzEEUyAB4UHYnYuq1yhjpZmyYS17Okms5IGpbnNUA5VB4JpelstsGF0sz3Nc7DhbaIXMLaElhZGX0bhBG5Sc5erEuq288eC4JSr5mjRg/qc4/hwrh1qduwt5NaD94ivmuuOVrkA0rTLju8Uk+Tgk57QK1c6p7TUpew2CecVihe5v0yMMY5yOo0eKMHd23Y+1B5MrYmMoCT21IG7hxXNkihgeDXpn16oaMia1FCRWuXsiqlbq2SMhwvkc8/y7OMee6srhgHMBy0G4NicHsiEaFsRL53Dg+d2beTcPJTx3tqXFBuLZWR7g17XA5fMsoZjw6Qnqwjtd1uDVqWz+yjY8ONrXFpq2Jlehjd9JxOckn1nVPANVpufZwRtDWsEbOA1PHEdSfBWCzWRsYo0LTJhYbqzxSZncOHYBuClQKL1CAQhCAQhCAQhCAQhCAQhCATW0XfG/VveMk6QgrN67JRzes1r/ALQ63c8dbzVYtuw72AiN7w36EjWzxcqOGQ7itNQgwm37CsJ69hjJ+lZpXQO/7b8ieQUNaNi4G/xrVD/jwY2/fjI9y+i5IGu1aD3Jq66ojoC3kaIr5tk2NlJPQ22xPG4OfJE7vEjAPNNH7DXjXqwxPHFlogcD3dJXyX0fadmIH6taftMY/wDEFF2nYqy/ymdzcP4SEwlYAdirzH/wnHkWO9z16dkL1/5KTwb/AJlt8mx9mHseDpR/5rxuyNnPsn78v+dMa8qxBuxF5/8AJkc3xt970tDsRb/bFni/xLREfJj3FbhHsTZTqwHmZD73p/Z9irKNI4/+2134qpkS1hcOx9P31uswO4RNlmP4WjzUjZNgoHUJFttB7Gts0R73YjTvW7WfZ+Jmgp9kBn4U7ZdkQzw1PE6ojIbr2Iw06Oy2eH6zgbVKDxBfVoPgrRZdhsZDpi+UjTpHYWDkxv5rQGRgaADkF0iIWw7PMjFMgPotAa3y176qVhszWeq0BKoQCEIQCEIQCEIQCEIQf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhUSEhIWFRAXFRUVFRYWERYQFhAXFRcWFhUXFRUYHiggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGy0fHyUrNS43LTctLTUrLSs3Ny8tLystOC8tKystKy03LS0rMS8rKy0rLS8tLTc3Ly4tLTctN//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgECAwUHBAj/xABQEAABAgMDBAwHDgQFBQEAAAABAAIDBBESITEFBkFRBxMVIlNhcXKBkZLRMlJiobHS0xQWFyMkQlRzgpOUssHCM6Kj8ENEVWODNOHi4/EI/8QAGgEBAQADAQEAAAAAAAAAAAAAAAECAwQFBv/EACwRAQACAgEDAgMIAwAAAAAAAAABAgMRMQQSIQUTQVFxFDJhgaGxwdEi4fD/2gAMAwEAAhEDEQA/AO4oiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLzZTiuZBiPYKvbDe5o1uDSQOui9KEIPlLKOyVlOObRiho0BrcOkmpXj9+2UfpB6l4858m+5p2Zl6UEOPEa3m2iWfy0WtsrppSs122VpuG/9++UeHPUrhnxlLh/5Qo/ZVbKvt1Z+3CQDPfKXD/yBZoWeeUT/AJmn/GCo0AsjFJx1baYq78w6Bk3KOUo7HbXPDbqVYx0FrREPi27W9J0GlK0rTERmLn/lVri10Utc0kOBhgFpFxBBFxBVuSZ4scCCt/nJkZuUIXuiCPljG79oxmWtGgaYgA+0BTECvBN7Y8nbfieJ/h19V0NJxe9gjjmP5aeRz+yi94a+asA3Wtqa4A6K4Xca3z8t5UH+c/oN71y9SrNzK1sbTEO+A3h8YeKeMLc8huZvOnKzBVszbNcNqY27XeV4nZ75YGMX+SGs8wxayYag9Ds/crcN/IxVZn9lQ4zFP+NhWljheNxWVdb8rCUe/vKf0n+m1PfzlP6T/TaosHq4PW+K0lsiK/JJ/fvlP6T/AE2qvv0yl9J/ptUZDleHK9lWcVp8klbndlI/5n+m1bLJGW56M9ofPbWwxIcNztoa+wIlQHEWhcCBXiKhrHqQ5HyZEjS8eyCfiosY8TJeHEv+1Ec1o42u1LVkpFY3DbWmKImbRxE/s6qcxspf6ufwI9qrfeLlH/Vz+CHtlIsxste7JGXj1q8sDYn1jN4/rIJ5CFvlqcTn3vDyj/rDvwf/ALl5sr5Gynk+XizYyoIm1ML7D5SyH3gBtrbSRUmi6Uuf7N02W5OEFt75iPChADTQmJ6WNHSgnOYmVIs1IS8xGFIkRlogYeEbJHRQrfLx5GkRAl4MBuEOEyGPsNDf0XsQEREBERB81bOeTdqysXgUbHhQ4nEXNBhu/ID0qB2V2v8A/R+T/i5SaHzIj4TjxPAe38jutcbsLowz406+nr3RLBZVbKz2FUQ1t26oxMAarg1ZhDVwYsZszjGthXKQZDyk6E4EFaRrFnhXLlz0jJXUu7pbzjttvM983Wx4bp+WbvgLUzDaOuM0fmH2tdOeNcQag0IvBF1F0/NvK7oThetRn/mo2GPdkq35M4jbGDCWe7Cn+244ajdqrxYM0xb2r8/Cfm4fU/T/AGp97H92f0/082SspiMyjv4rRvh4w8YK2aUVl47mODmmhC34nBEbaGOkaiux47yxyvFEK9Mdy8bygsJVWvVhVFYnRt6A5XhyQJJ7hbNGQ/HfvW6t6MXX3b0FZPdkOH/CFp/CRGi7jZDvA5XVOqi2RlbY3zPhssl5Mc9zbQO+oWMBsuiA4E+JD8s/ZB0d6zCyPCgw3McA58VtmKaUBbSy1jRoY0EgDjJvJJXGM1I1HWiSXE1Lialx1knFdkzenMF43X9VkjNEcRHl7v2Cv2Tu5myKbE80ZGfnMkRTT4x0SDX5xaBXpdCsO+wV1xci2aZCJLx5XK8tc9rmsiEVpabfDLqYgi006xQaV0vN3LMKdloczC8CI2tNLHC5zDxg1C9SJi0RaOJfNU3rU8x4/wC+vLZLnOezfdWWslSeIYXTLxooDaFfuCPtLoy5/mcPdWcU/MVqyWhNl2+S40a7pqyN1ozdXREQEREBERBCdmbJu35ImQPChhsYcW1uBd/JbXzjLi01p1gL67yjKNjQokF3gxGPYeR7S0+lfJOTYLmh0Nwo+G9zHDUQb/PVZ1tp3+nx3ZJr84NrVdrXvlZOJEdYhsc9/isaXu6gpdknYznotDFsQGeWbb+hjf1IVnI9a9aY43eYhAxDWeVkokR1mGxz3+KxheeoBdqyTsZyEKhiW47vLNlnQxtPOSpdJycKE2xChshs8VjAwdQWM3lw5Oux1+5G/wBHE8l7GuUYt7mNgt1xX305janropZk7YlgNvjzD3nVDa2EOSptE+ZdHRY8uS3XZZ48I1J5h5Mh3iXtHW+I9/mJp5lthkWVsOh7Sza3NLXNsijmkUIOsUXvRY9ld70026jLaNWtMx9ZQ6e2L8jxf8qGHXDiRIdPs2rPmUNy1sLuZV8jMWv9qPQWuSK0Urqq3pXY1hm5qHCaXxXtZDGLnuDGjlJuWTTEbfKeWMnx5eIYUeG6HFGLXChprBwcOMVC1pFbtPpXbNkDPrJMzDMuIBnHCtl4+JZCdrZGItV5oIOlctgvLfAAhjyKhx5YhNo8lQOJPPwZ9uuXigZIiE7/AHnERV/YHg/asjjUkyJkCCCC4dLqPd0A71vUSNDl4ZZwGFy20pM0WOk7tcJDnHm3DmZIsgNpHYREbfUxi1paWuJvcbJurpAGlceIXZclZSpS9RfZDzcBJnYDd6b47R81x/xANR06jfpusJM7RzIM3ZIC63mxP1AvXDZeLZIKn2a+VqUvXD6jh7698cw+m9H6iMmOcFufg7fElIU7LRJWNfDiNLeadDhxg0PQuQ5j5bi5Dn4khOGks99HONzWONzIzfJcKA9Hi0XQ8h5SwvVuyPmezKssHwqCdhAmGcNtGmG48eg6Dyla/TupiY9q35f08b1TpLYMk5Ijx8f7/L9vomsSM1rS8nehpcTooBUnqUM2BoDnSszOPG/mpqJE5QP/ACdEXL8jbIMWBk+aybNB+2CC+DAcQbUO1vHQn1vAALqHRSmFKd52OMm+5smSkKlHbSx7hqdE+MdXjq4r03DykiIiAiIgIiIC4jkzNqVdl7KMvHYXA2ZqE20WtIeWufWmN8UCldBXblyrPyKyTy7ITj3iHBjQYsCK5xDWixUgucbhfEZ2UZUvak91Z1KbSUlCgtsQobIbdTGhg6aYr0LR+/DJn0+V/Ew+9Pfhkz6fK/iYfeiTMzO5bxFo/fhkz6fK/iYfenvwyZ9PlfxMPvRG8RaP34ZM+nyv4mH3qO5xbLOTZarYTjMxdUK6GDxxTdTm2kWImU+WkzgzskZIfKY7WO0Qxv4h5IbanpNy4XnHsp5SmqtY8S8I/Ng1a4jyop33VTkUJc8kkk1JvJJqSdZKsVmfwZaiPxdczh2aIrqtkoAhjhY1Hv5RDG9B5SeRc5ypliZmn25mM+K7RbdUN5rfBb0ALUhyyNetkVrC7exjl6GOXgbFGtZmR26x1rLwrYNKzwotFrmTLfGHWszZqH4w6wsLViWMxDeys3RSHJ2URShoWkUIN4INxBGpQRk6wfPb2gvdLZVhj/Eb2gtUwweLPDNv3O7bYV8s43aTBJ+aeLUejl0+TZ0scNSnsvlyXc0siRIZY4UcHPFCOtQnL+T4UJ9YMVsSE7waPDnM8lwHpV/CWzFktjtFq8uh5sZbwBK6XkTKmF6+cclZRMMipuXRc387IIAD4rG8rwPSvE6vpLY7d1OH1VOow9bh/wApiLNtsvZuykeakHQ22ZqajtgxA24RGAsBe4eMLTRXVjgKdyY0AAC4AUHEAuKZvzbMoZelbD2xIMrLxI1WuDhadVmI43w+pdsXrYLWtjib8vlcuOuO81rxEiIi2tYiIgIiICheytkeRmJMGbdEYIb6wnQqGJbcCLLWuudUVqDTCtRRTRQjZWbWXhD/AHv2OQcMdm1K1uizFOOFCr+ZPezLcLH+7hest/OPZCYXvNGinHiaALW7uy/ldkd6ukaB+QrzSI6lTSsvErSt1aCnUvFEybGBIEOIRU0IhuvGulLlLd3Jfyuod6buy/ldQ700IhufG4KJ927uTc+NwUT7t3cpfu5L+V1DvTd2X8rqHemlRHc6PwUTsFNzo/BROwe5S7d2X8rqHehy5L+V1DvTQiByfG4KJ2HdybnxuCifdu7lL93IHldQ71TdyB5XUO9NCI7nxuCifdu7k3PjcFE7Du5S7dyB5XUO9V3cgeV1DvTQiO50fgonYPcm50fgonYPcpdu5A8rqHem7kDyuod6aEQ3PjcFE+7d3JufG4KJ927uUvGXZfyuod6buy/ldQ700IhufG4KJ2Hdy9u4Z8d34eL3KRbuy/ldQ703cl/K6h3poeBubMvS+LHr9XD9ZV97Utwsx93C9Ze3d2X8rsjvXvkJiHGaXMOBoQRQg4ppHQ9hrIWT4LIsWXfFfMGyyLtwa10Nt5Aa1lRZJFa1NbOilF0tc22KGUix+Yz0uXSVFEREBERAREQFCdlQfJ4X1v7HKbKGbKA+IhfW/tcg43nQz5O7nM/NyqKRGAU3zTXVW7iNQFMM6h8mdzmfm5FDtrbTAVrxeiiyRiiaOULJFIsjwcDhj9rWqyjQW4AmyTeBo9KtlwC/wQb23UGnVqQXQCLB8HBuNa/Z1capJvAdXenfHwxVuGkBJloESlkABzhS44V06eVXzjAGt3oFW1rdfeRXC7DDvQYYhFvRpww6FfOkEXWcG+DUDRiDp1rMyGNrLrAuc0VoLqhxpTThjxcasyfDDjSyD4eoYAnEjiw6EFbQsU3tbVdNrAacLP6rHJkWb7Pgnwq69FMCrBS1gKU1CmOpZcoQg11ktaCHCoFD5xigxwSLZw+bjeOniVZlwLwbhefBuGGgHQs0ZrbANltTa0DRTRS7FUlYQLHGy02WtqTSoqQOlBZNuBZdZ8H5oIP2q4nkVzHiwRvcRiDa6DhTvVJKGHPs2QauAAIAxpdXQscQC0LhprcKILpOlby3E+FUjpoFj+d9n9Vmn4YaBvQKtaRQDA01dKqA2mAx8UU69aDHOEE/NxHg1DegG9ZIrhYA3mnAG1p8I4HFWSYFL2g3E6Ou/HkVgaC43DRoQVgu3oFRgFJ80G7yJzx6FH4Uk9wq2GXCtKhlb9XKpJma3eRB/uDouQdT2KW/GR+Yz0ldIXO9i0fGR+Yz9V0RSVERFAREQEREBQ3ZOHxEL639rlMlENkkfEQ/rf2uQcezrHyZ3OZ+YqF2eM9Y7lOs7m/JXc5mvxioVFiPdStm4UFAG+gXrJHndDApjjRZo0rZaH0NHWrJqDWzcVY9pOq69Vaxzm+EKar7qoL4ElaaXgEhoBcbQFm1hjyKyWlrZsipNaAVAwvvJuVIbHG4EXXab0DXNNAbzfW+5BQwxaAvpTX/ANlfNyu14ggkNPhA3OpQ3cRVIkMi8kf/AFXOgOIxHnQVMqKWr6EkVtDEUJux0jrVstLB4rfUAuN4FANN6Q2OcMR51RjDWyCLkFIUEOcW36ALxU1VY0ANcG3i+hvFyOhkHEXqsSE7EuBpU6UFI0uGtrfeKi8X3kekFXw5Orbd9BcTaF1eLHSFaIRcMRTpSG1xqKjGmm+iCkrLWzZvJv8AnBtwFTUniCsLBapfSlcb8eRXCGQaVF96RYRbeSNA670CZgNaaAnEedXugtDbQJqa6dQFPT5lWNCc7fEjHzinesYLi0CopeeugPoCBDbUVtHAHlvF3n8yleZY+Lic8ehRZloCgpSlOioP6BS7MdvxcX6xuvUg6jsXD4yPzGfquhqAbGbd/G5rNfGp+sZUREQEREBERAUT2RR8RD+s/a5SxRXZC/gw/rP2uQckzxb8lfzmavGKhIjQqfw31078eiypznp/0j+cz8x41BYlgAEPBOkUIpdrPUskY3vF9AQL6DGmq/SrYMdzQWgYiybgaioN3SAehVtjX51a94qOVBWC97DaoQagg0woji5xtWTpOGvUr48w0tAAoaEE1raJJ6rqBVhzLA0girrqGtLNMbtNUFseM+IAKVoA0XYBuhV299LFDStqlNOFfMkpHa01cKipurStRdf5+hWbaLVeKiC+BGfDwGILTUVqHcqtYXtNqydBF2FFdMx2uO9FBUXVJpQX3njV8SaYWBobRwrV1rwq4CmiiDHGiPebRBJrjTVdoR8RzhZphUYYV1q+WmGNBDm1NCBvi2ydfHyKyBHaHVcKtqLq0r0oKsjva0soaOpUUxs4U61bCe5htWdJN4uvuvVY8ZpdUCjam6tbIOAqkzMWm0rW4AUFP7KCyjq1snCmCRHF2DTo48BeswmRSlbq1/sqyUmA3TS53nBu6cEFpiHCya8l6pDdQAUPUlsFxPErrQ1jrQZIcVlN8xxOsOs+ahUuzEAMOL9YMaalEYNg+E8N6C6vUphmD/Di/WN9CDqWxwN/G5rP1U7UG2OvDi81inKkqIiKAiIgIiICiuyCPiYf1n7SpUo5ns2sOHz/ANpSByHPUfJH85n5jxKCRYFigc1ptMDhfgHYG7Tcuw5UyTCmIToUQGy6l7TZc0g1BB5VHfg4leGmO3C9mskc+k5Z7mhwZaHpVIcBzojmhu+8UaKYroPwcSvDTHbhezT4OJXhpjtwvZoOfzMEhzGllkm6njaKr0y8k8OBdBtC+6tmvSMNCm/wcSvDTHbhezT4OZXhpjtwvZoOcwtPKVfdqXRRsby3DR+3C9knwcS3DR+3C9kg51dqS7Uui/BxLcNH7cL2SfBxLcNH7cL2SDnV2pLtS6L8HEtw0ftwvZJ8HEtw0ftwvZIOdMpbbvaiuGFriXriSMQkkQqCuFxs1wFVOvg3luGj9uF7JPg3luGj9uF7JBz+SgOe11llqhx8VYYrCHFtKEC8YLonwcyo/wAaY7cL2afBzK8NMduF7NBzmLDc00cKGou030Ix4lfEG9BsEeFvqDfYXY0u4vG5F0M7HMrw0x24Xs1X4OZXhpjtwvZoObMhuIJAuABPECQKnpI61Odj7+FF+sb6ORe/4OJXhpjtwvZre5DyBBlGFkO06rrTnPIc4nAYAAAcQQSnY78OLzWf3gpwojmSwB8S75rfSVLlJUREUBERAREQFoc7m1hs5/7St8tJnSN4znfoVYEWENXCGszWq8NVR5tqTal6rKWUHl2pUMP++heqyrXtQeeyllZrKpZQYbKWVmsJZQYbKWVlsqtlBispZWWyq2UGAQ7/AO+NXbWszG/31q+yg821JtS9VlLKDy7WrTDXrLVYWoNpmi2j4nNHpKlCjmaw37+aPSVI1JUREUBERAREQFps5hvGc79CtytRnJ4Ded+hVgR9oV4Co0K8BVFtEor1SiCyitIWRUKCyyllX0SiDHZSyslEogx2UsrJREFllLKvoq0QYwFdRV0qqClEorkogtIVhCykK0hBs82Rv380elSFaDNvwn8g9K36kqIiKAiIgIiIC1GcfgN536FbdYZqXbEaWuw9B1hBEgFeti/IUSu9iNpxsJPmKpuFF4RnYd6yy2jXqi2O4UXhGdh3rJuFF4RnYd6ybGtKtK2e4MXhGdg+sm4MXhGdg+smxraqlVstwIvCM7B9ZNwIvCM+7PrJsa2qVW0bkGKPnsPLDdd1OVdw4njQ+w71k2NVVKra7hxPGh9h3rKjshRD8+GP+N3rJsayqVWx3Ai8IzsH1k3Ai8IzsH1k2NarlsdwYvCM7B9ZNwYvCM7B9ZNjXqq2G4UXhGdh3rJuFF4RnYd6ybGvVpWy3Di8IzsO9ZBkKLpiM7B9ZNi7Nwb5/IPSt8vLISbYTaC8nE616lioiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUREhIVFRUXFhUYGBcWFRYYFhUVFRcWFxcVFxoYHSggGBomHRUVITEhJSkrLi4uFyAzODMtNyguLisBCgoKDg0OGhAQGy0mICYtLy0tKy0tLS0rLS8tLS0uLi0rLy0wLS8tLS8tLS0vKzc2NS4tLS0tLS0tLS0tNy0vLf/AABEIANEA8QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAwQFBgcCAQj/xABHEAABAwIDBAcFBAcHAwUBAAABAAIDBBESITEFQVFhBgcTcYGRoSIycrHBM0JS8BQjYqKy0eEIFUOCkrPCc3TSJDVTY6MW/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAECAwQFBv/EADERAAIBAgQEBAQHAQEAAAAAAAABAgMRBBIhMRNBUWFxkaHwBSIywRQjQoGx0eFSFf/aAAwDAQACEQMRAD8A3FChdv8ASuioi0VVSyIuFw03LiOOFoJtzVZqOuTY7dJ3v+GGT/kAgNAQsrquvfZzfciqX/5GN+b1F1H9oCH/AA6GQ/FK1vyaUBtCFgVR/aAqD7lFE34pHu+Qao5/XdtWQ2ihgHwxSOPq8qbA+jkL5pk6wekcvu9q34KVoHmWFITbR6SSZumqR3SMj+RCsqcnsmVckuZ9OpKWoY33ntb3uA+a+U6ig2s/KWplPJ9S93yJSTOik8gDXvjyJOL2nON9xJGYWywlZ/pZR16a5n0/VdKaGP7Sspm980Y+qjKnrG2UwXNbERe124ni/C7Ac1htF1fuLi81QbcWIbCNCLHV2XkpWDq4gDDG6onLCQ4tBY0FwFr2LSp/CVea9Sv4in1NGqOuXY7dJ3v+GGT/AJAKLqevjZzfchqX/wCSNo9XqsQdXVABm2Rx/akP/Gyj6vopSRkhsA8S538RK2pfDqlR2uvUh4mPcsVV/aAiH2dC88MczW/JpUVU9f8AUn7Oihb8Uj3/ACDVFM2ZAAbQxg2OeBt/koGqkDGlwGm4ZLr/APHaV5TXkZSxlmklv3LDUdd+1Xe7HTsHKJ5P7zyoyo61dtv0qcPwwxD5tVa/S3SODGMu5xAABuSToNFIf3JI0tE09NTOcAQyZ7sYB0xBjXFl/wBqyzeGwMF89V/sjog6sto+otJ0s2zKbGsqMzoJcIueTSLLvamztqMp31U1XI5jHNab1ErnEuJAtfI6cU32hs+ro5QJLN3se3C5juBa7MHW/FSx2hJLRVFNK8uDYxK0G2TgbnQfst9VjOlhpaUW3vq7cl2K3qxk86SSPoLq/wBomo2bSTOcXOdCzE46l7RhcTzu0qwLN+oGu7TZTWXzimlZ5kSD/cWkLzjcEIQgBCEIAQhCAEIQgBCEID54/tFURbWRS7nRjzzFv3PVQOxeiFNJDHK4yEuY0kYgACRmBZt7XvvWj/2i6DFSwzW9xzgfHDb0xqkdBKjFSNH4HPb64h/EvQwEITqWmr6HJi5SjC8XzFo+iFEP8Inve/6FPoNg0jdKeLxaHfO6kGC69wL2OBSW0V5HlurN835ilJRQt9yKNvwsaPkFJR8lHRuT6ncs5wtsa0ql3Zi4K9e268XQKysb3Iuso7pqylsp1zbpF0C1VWyMpQEKcWT9ibtjslmvC551SFKK3FQbKL29DlcKSTPaLrjCujDS+ZNGiZVXDXuKqdWLtcOIKtW034GvPIjzyVTcV61k1Yynuhfq2hBqXvNrshkcy4v7dvZNt43Hk4qC2dQyTSjExziTjeXE3eLgvN3ak3J8ynXRvaYpqnE7JpxMcc8mkgg5Z2u1t7brp/WbHnbUmpY1rmPe94LC3JpIsSBxxixF8Wo4r4jGKcZvpb1PpMLCE4RfSWq7O2podVHDUtdS4gQWPkiyzY9ouASScr38LhZ5sr2nXvk/FG4cMTQ9vmGv/wBJVq2VNT0dFJVPwmdzpRDmS+5BYBrk3Nzj3jfZZ9Qz4XtPBzf/AB/5LX4bDhSXS6/0t8Zy1JqK3tr9jXv7NlYcNZTn7ropAOZD2O/hatsXzr1F1fZ7YliJylilFuYc2QegcvopZVIZJuL5OxxJ3VwQhCoSCEIQAhCEAIQhACEIQFL636DttlzDe3C4d59i/wC+sI6uaj2Zo+Ba4eNwfk1fTXSKl7Wlnj3uieB8WE4fWy+V+iLuyrXxaAiRgHwnEPRpXZgZZa0fG3mc2LjelLz8jQMaXilTS66BX0zjdHz6lZkvC0OShZhUZDPZOv0q653Tlc6o1YW1HjZUs1RrJE5bMs5wsTTnqOcS8MibGRNp6mywdNy0R15XLYePlXLHqKbVXKkqUXss6lJw3OKvTcWSMaZVg9o8gnzFWOk23WRMcAczcDiXb/ALfCo6G8iRWektdd2AcblQYckTKXOJO9SWzdlyTGzRlvcfdb38TyXqKonryKy03K5VxEyEDfn6KwbDrHQsB7d7Wi4DOza8Z3uRjNm652TrpDsttM6FwFwRc4xftXRuuQR+HMAjzUDtPaRlfI5kbGtdq1jLMjBIsGD7gvw420Nl85irTqyS2uelSk8qYV1RE5xP6x2V/usF87m2E2GmQ5jujoyb+Hyz+idVG0ZnkEmxEYiuGht4wMOE2GeQtc5lIwRke1kAN9xnmLgcTmMuCrHRGj3Lt0eifRbboJJLDtuyIsb+zOHwi6+nF8hbT2vIRRTnMwWDTv8A1bmkD0K+uoZQ5rXDRwBHcRcLnxaaqu/PXz1LRcLfJtt5HaEIXMWBCEIAQhCAEIQgBCEIDxxABJ0XyJWSsZtJssRvG97HMJyPZv8AZuRuNrr68K+Qemmz+wmwC4MUs8I10hlIYfIhaU5ZXm6NMpNZlbqX3EvcaZRVAc1rxo4A+YuuHTL7BPQ+TcnexIdqum1CiHTrgVBUiKlJllppbpzLdpsQobZlVYg6qxDaQd/h3XFVk1I+hwuHpKl+ZKzG+OwTSZjjnYgKSFb+FrQe665r6s9n7WpOSxVV3skdEKmHknGnO9lyRDxMu6ysFKyyY7LpPvuTDaW2nFxZTNMrtLjJo/zHIfm11FROrLsuZ5VaWaSfIe9JduNp4jn7RyAWZxQVFZISxpdbK+jGb7Fxy58SrRV7Ha09ttCXE7URNOFrRuBuQfEkX5pL++JJAGUsRDBkMDQ1gHxOGnc3xUqStliWbUfmnv8Ax772PaPo5BDYzPxu/CMm34AauS9d0jjgGFrWgjRosSP8oyHj5FM3bHqn+88MvqGXLj3vdmk4+jDW7rnnn/RaZZy3aS99Dl/GUU75vu/6X7eZAbY2rLUva5zrEH2bC7iTaw56CwAA5Jo7Z8ocWuinxWBw9m4Gx0NrZD2TnyKttZRPhjEseFronxyN9kWux7XAkDUZKO6Q7clqZA9zoowGNYGsxOFgcWdwb5nuFu8njxEo0qllFPTd3PSwleFWm2nz96kHUbPMYBfA5t72xmxNtchmuY5QNImeIunLJhbN7tMwxgaO69xfyT7Z1EJH4GxEktJHaPwAX9kPGQvYuad/NYSxk4q+i8EjRxzO33Y02ix0lGZCAOzkANhYWIsPV3ovpzq8ru22ZRyE3JgjBP7TBgd6tK+e20Lm09ZA4tceyEgwODgOyc6+Y33YPRa71A13abJay+cUsrPMiQf7i469fjSUn0GDbTnBq1n/ACk/7NIQhCwO0EIQgBCEIAQhCAEIQgBfNfXbQllbUZZOfDOPhfGI3fvt9V9KLDOvaAOqnX30TPNksz/orR5lZFL2HVYqePkMP+kkfIBOHSKC6MTfq3N4O9CB/IqbijJ0C+swjz0Iy7HiTwj4svE9GafUdCXJxR7Ptm5PH1AAsFM6nKJjVrUsPotZe9xWCFrBlmfRLNz1OXom0NzmV1PVMjGZ8FyuLbtuzzHLEYueVf4h8XtaL/kpt2zcV5Dd1rtjGbrcbbu8qMhkmqCSwiONvvTP0aP2Qcr+fnkme1OkEdK0x0lzI73p35yE6Yhf3eRPtfDojpZE29/49+fgezQpKlDhw3e79++5Mbb2hHGLVcuAbqePOR3/AFOHcbdxVdl6YTPIho4RCDkMOchG8l+WHvFhxVWijklfYXe9x8STvJWgbC2MynZuLz7zvoOXJZfUuxOIqxoWUVeb2XvZCGzNgsFn1H6+XWx+zYT+Fv3jzOXJWSGledwA8k3E4HujxXLqt3FHntaOhzx+Hus1LEy/ZaWJRuz3b3N8wuX7PG9w8LKJNQ7iuDM7is+FU/6OqPw3Ar9L8x9XbOY+N8Zd7zXNvllcEXVEdRQtAcZnFpIDTHSmznbg17rAnI6cFau2cqtWbXm7IUxu1kb7Nwxuz7FxwG5IF8xmN1sly4mEo2b1OzD4ahBNU1Y9mgYGl7oa17RYkyERsz0OQOSbM2jA33KSO/8A9j5JPqAu6aglnu6zbE2L5Hwx5udoTYvuTrn3q0R9WsrW45qijibxxyym5JsCLNaNw1XM2bqnFMj+jO0jJN2Biia2Rj22jja3PCTrqcgVaf7N1WQK2ldkWujfbmcTHfwtVM2dH+jVcZJN2yx/da0YXizvZDjbXTzsrD1Tz9j0gqob5StmsOeJszfJuJYt3Vy8aUabdlbqjfUIQqGgIQhACEIQAhCEAIQhACx/rbiDq5gOhp2D/wDSVbAsf62nf+uZ/wBvH/uSq9PcrLYyLobDeeSJ2Rw3Pex1iP3le442MGWvEqjULjFtIjTE51x/1G4gPMhXpkBOZyC9nAzbo5W9EzwfiterGooRejXLcSdI5xsEs2FrBieUhWbRZGLM14qLfUlwLnE23klegoSa6L1OSjg42zVnZdFux/WbWyIZkBq48O/co/YsBqnukc4tpos5ZSMzfSNgP3nbgoYF9XKIY8mXuTyGrjx5DjbwtvSpraaGKiiFgxokk5yPFxfiQ0jxc5VhO88lPTuemssIWUbLp49e/wBu5C9IukRdaOMYI25MYN267j953EqrZk3O/wBV044jc6KX6PbLM0gJHsNPgSNB3LOo+I7R+le7lpSjRg5S99iwdEtldnH2zxYu0H4W7h3nXy4KbaC48kSZkRjQa96fQxWCwlJROKF4fmz+uXougiIEdgnmBGBZcRkcWQyMCTfCpAsSMrFKmzWEmyNexQU9KHThrXPD8Tn5MxtDQxrg4BvtE3a6+WQAPFWKcKBr3OZM2RpDThIxEnLUHIa5O0VcXTcqN+j/AMPRwyebUtuw9ixl0UdRM+Rtg8NEYABYzJoOd8njIgG7Qp8bLLJ8ccTJIgwPDJcTSx9xZ2ACxNr5HeRooCg6T5xxkCJjD7zBdxxNLbAEZA/VXjYzjPG+UEDG39WcibW1Omd7cNy8Jzns/BntzoRp72vvp42Mj6QbQkdVGpc0OAdhsWNswEEAEfi1NydQmuzaoQ9IKOfdI6IX/wCqHQfUKw9KthAQtdjHaEtdKdxc4hjzbcAQSPFUPpPIYjSTtILoja4IIvE5pbYjmCuqEfy32t79TkryTqfKrLp78D6xQuIJQ5rXjRwBHcRcLtYlQQhCAEIQgBCEIAQhCAFjfW87/wBc3/t4/wDclWyLFeuR9q9v/bx/7kyvT3Ky2Mr6SP7OphmtuY7vMbs/QNVp2htQuyboqz0pZiijf+F7m/6wD/wKc0Ut42O34R52zXsfCrZ5p9mefjVZRmlrsP4mXN3KP2/V6Rt7zbhw/PBOHVGS7oKHE9pcNTlzA39y9mpC8Xd2POjaL4k+RYehOyhEGYh7T7OfyaPdb4Xv3rjpmwyVNSR7X611vh0B7rWUpBOGv8AupHh5L7cu9edGThK66F5zao3lvpK/29beBQKbY7nODfOyu2z6VsMWQ5DmUtT09zkAByFrryZ2J4aNGrWpVTWWK8Tlo1JYqd5fTHXxYvQxbzqVKRxpGmYnYXnTldnQvnk5M5wowLu6FWzNOGJFqbzBOpHJlUOWlNamlOGowmOahOkU/ZtZIGMfZxbaT3RiBzOY/DvyT6p2jCz35WN73tB8rqLn6UUjcjJi5Na4+pFltVcHBwlJI9KF1sRVTtyqla1jI4wGhoBhh1taxcRe5ySv6dtZzGxdvOyNosGh4iAA3EMsT4ryo6cRfcie74i1vyumTulNTJ9jTjwa959LLijHCx3d/BG0qlSW4vSbGeS504ZISMi98pLTcEn2XNJuLjXfde9J6LDSAC3syB1mghoDriwBJIFyNSUwe/aD9SIweLo2W8CcSU2d0cmqZo4H1bcUj2sFzI8AuIAJuAN+4qKlajlapxeq5meV3TbPpbq6re22ZRyXuewjaTxcwYHerSrEoDoL0dOz6KKjMnamPGcWHCDje59gLmwGJT6842BCEIAQhCAEIQgBCEIAWI9djHCvjdudTsA1zLZJb/xDzW3KkdaPR/8ASYA9ovJEC5vMfeb4j1AVoOzIkrowHaUWKmlGtsLh4OsT5EppsN14gOBI+v1VgNPjY5v4mOb4kEfNRXQItvKHC5GFzfG4P0Xo4Grw8Qn1TRx4pxVFyly1Jui2WAO0k01DePel6B2KQvPcOQ4Bc11cwH25GNHAuATD+/6Vn+Jf4WuPray9ideKTzyV/E8GfFrJ5YvtZFrfBizTnKwaNAqU7p5G0WbE93eWt+V00PTmoebQwMv/AJnn0svLnioLS97HRUw2KrwjBxsud7F+qZsLbDVI7OZvWfT7R2lLmbsHAhkf8dimklDO/KWpFt4Mj3+gBHqqPGRy2inc9CGBUKXDTSNak2pBGP1k0bPie0HyJUZV9OKFmXbYj+wxx9bW9Vm7Njwj3pHu7mtb6kn5L3sqRuWHF8chJ/cwrn40+iNYYSEedy3VPWVCPs4ZHfEWsHpiUe/rDq5Moadnk+Q+lvkoeOrb/hwjkWwi/wDqcL+qcdpUvywOt+0+w8hdQ6tR8zZUoLkKT7b2rJq/swd1o47f6rOUfNRTyfbVWIcC+R58rW9U7bQyn3pI2dwufUrv+7m/flkPIeyPQBUd3u2WVlsiObsiEe897u4NYPUuXQbSt0Y1x/ae5x8m2Hopf+64WgHA11wT7UjSQBxBJseScwlgADQGngGaZ8Sfooyom7IiGc/4UBHNsTW/vEApz2NW/Vth+28/TJSjJSL3ueGeEW4kN/nknNOwg4m28QHEeYzViCIg2DM/WVo5MaXHzzU3sPYr6aeOYPeZGOxNxhuG44g5elxqLWun1HY6nPTLzzwj2vpdPaaPg3ENQcr9xvme/wDJAtw6f1IcC6OFzfvNjLy63EG9vQq97K2lFURiWJ12nzB4HmskZMTcBrW+F8uIv/NONm1stK/tonCx99mjXeF9fzxvRwXIspGvoUbsLbUVVH2kZz+83e08Dy1z+twpJYmgIQhACEIQAhCEAJvWR3CcLl4yQGC9YWx3UlSJWC0UpxDg1+rm/Uf0WaS7GON+CVgYXG2b74Sbi4DV9YbUoGSNwvaHDgRcLK+smCjEZgB7OZoxDs2aNOocdACPHetE76FGrGSN2NEPelc7k1gHq4/Rd/o9KzVpd8cn0YAnrNkMIJJe8DUl1h8xwSjaBjCAWNbcAgmx9k78vHJXyordkeysiH2cTMtLRYz5uufVL/ps7sg19ubsI8gn7mAXwnIED3bX89F3CA7CDlmbkuIHoDb1U2IIv9HmOpY3zJ+i7j2a5xAMriSQAGC1ydALBSDHOYSNL3abtFxyzGSJQCAQc7WI35b8gARnzPFSBmdlMb7zHmxscRNgeBvoU5ipWCwYGXN9A425Gw+V13G4WN237rAgjTUact+S9ga4n2e/UDTPK+/kgPGvyOt8rWsBzvlc+a6ddpva4OmL2rjfusbFcPdc52G/IWH9ES23EkDjlrrlfJAdADDe9iOWoyzvvOenBexy3JxlxBtizJJ4HM2J71xcWtbPPPiD+fVKAPYL2IDhw1aeF0BzGM8uPdnx5JZ+ZzAb3X1GW/ek2NGZv/VOKYN+8Ce4+RvY70AsRk0YsQGdsxYnUZ7+YTuGJpAAab6+GXH+aRpWG+Q32zIGf0T0ZuzsOBGl/DIIB5C9zRmAfzrYbx+eCdxRnUO1zyHqM00dlb2vA2AvvGXzTiLsy22G+u4nM6g7uJQDiNwPvElw5nzFvFLMcBmGX8LfUFN2vc0Zi44k5252ve3Fe9qTpc9zScuROSAXpqiaGT9IhIa4ai+Tx+Eg+HpyI0voz0jiq2ZezI334zqOY4j88L5JNMG++619C5zW3tyByP57kWVxjeJacvbI03Ba02PIkjCfzqLg1lG5Kdje0Kt9EulTKpoY8BkwGbdzuJb9Ru5qyLFqxqmCEIUAEIQgBCx7Y/SWqhrpWVMj3PZK4ObiOAsvo1t7AYSC3wWvRSBzQ5puCAQRvBzBVnGxCdziViy7rR6PXAq2DNos/m3j4fnRasQmNfSte0tcLgggjiCoTsw1c+YywNOlxqO7h4fyXJblobcef81YOlmwnU07ofu3xRniOHzChIyXWaX4QL+9isDvFgDY+C6E7mQmCbHTPl8uC6ia03JdbLLK9yN3JdStYNHkn4bC3I3v6JIjggAa8fzolX+272GWvo0Em2XPNc9ocNrC176C/na/giNl7nEBYX78xpzzv4IAdI62A6Ak24HQ92g8kSRgAWde+Z1Fjw0+S45FdS4b+yCBuvmfE2F0ANcLG4N8rHhxy3rqna64wC51G/TPyXgeSLWGpPO+/PwXgagBxuc9dcgB5WyHclJWAHJwdpmLjwzAzXFhvPmUtFGTo0nwt6nJAdRhuG2E3vrfK3C1ted07pXObpbS2YBy8QfNeRUz+AHec/S/zTyKiP4j/lbb1dcIBNjTqD/Xkl2SMt7brbgDbPiDmlW0I3gn4nH5DJLxUwbpYfC0BAJU0wByaXcPZOfIk2B77/1ddo85hgab6ufu4YWg388l6Ixz80A2yPgfoUB3+sOrwPhbmPFxPySZp27y497jbyFh6LvGuHPQHLWNb7rQO4AfJcucvHOSZcpAoyYtIc0kEEEEGxBGhB3Fab0O6YtntBOQ2bRrtGy/yfy37uAysuXmJVlG5Kdj6FQqD0L6b4sNPVO9rRkp0dwa/g7g7fvz1vywasaJ3BCEKCTKut3Y5ikj2jGNLMltwv7Dz4nD4t4KydXW2xLF2JObRiZ8J1HgT5O5KybZ2cyohfC8Xa9pafEbuaxLo5VS0NW6B/vxPy3Bzd3g5p9VpH5lYo9Hc3pcPauKSpbIxsjDdrgCPHjzSpWZcpnWD0d/SYCWj9Yy7mcTxb4/OywypjscVrbnDg7+v8uK+oJWXWL9ZPR7sJjM0fqpb4rfdfv7r6+a0py5FJLmUaSRtgGstzuSTlzy9EmSU6ihkFwHWByJBIuOYA9F62i4u8gB87rUoNmC/wB4DK41z5CwOffkk7gG3HS6kWUbBuv3k/LRLMjA0AHcLIBttAxyOBggfE2wGEvL7uF/axOa227LkuYoZLFuQBtcX4aaD6p9ZdWQDFtDvLj4AD53Xbadv4Sfid9BknlknI3epARRgaADuACcxsHPzTZrkuxyAeRWGgASwembXJUPQDkOXQKbh67DkAsCg55FJY15jQHpdbI+B4/1XLnLx7r6pDHuPnx/qgO3OXBK5LklJKBqQO8oBUleFyZSbSjG8nuH10StPHUy/ZUzzzIIHnp6qLgWJV76FdOuztT1bv1ejJTqzg153t/a3b8sxV6LoPtKbXDGPM/X5qw7O6pLkGonc7iBkPW6pKUWWSZqfbt/E3zCFE//AMvSf/EPN/8A5IWWhcmllfXBsMtLNoRjNlmyW3sJyd4E/vclqia7UomzRPieLtc0gjiCLEInZhq5TOrPbwe3sCdbuZ3/AH2/8v8AUr6vn7ZhkoKx1O42dG+7HHeNWu7iNR3hbvsuubNEyVujhpwOhb4G4VprmRF8hwQofpHshlTC+Fw94ZHgdxHippcOaqFj5vqaV8Uj4ZBZzCQf5/nkubLR+tTo6SBWRj2m5PA3t3Hw+vJZyw3FwuiLujJqwWXtl6vVYgLL2yF6gBe2Xi9QDeRtjyXbHJZzQRZN2wu4IBw1y7D0l2dvecB+ea4dVRDeXd2frogHQeuw5N6cyyfYwPdzsbeYFvVS9H0R2jN90Rjnr6XVXJIWYwLkjJVsGrx3an0VyouqqR2c87jyGXzv8lZNndWtFH7zMfxXI8jl6KrqItlZkYr8Rsxj3ngB9NfRPqbY1fN7lOWji7+tj6LcqPYdPGLMiaPAJ+yMDQAKrqMnIYzRdWlbJnLMGDg2/wA8lYdndU1M3OVznnmf/Gy0dCq5MtlRX9ndDqOH3IW342F/PVTUVIxvusA8EshVJBCEIAQhCAEIQgMv649gEtbXRj2osn23xk6+BN+4lKdV3SEH9S45SZt5SAZjxA8281otbStlY6N4Ba4EEHQgixC+eds7Gqdl1Y97sTIOykFyL3uwG2jr2Ft9slpF3Vij0dz6NQhCzLiVRTte0scAQ4EEHgVgfSfYrqOpdCfcccUZ4g7vzw5r6BVU6xOjv6XTEtH62O7mcTxb4/MBWhKzKyVzGUBNhVAe9e4yOR1CUgMkn2UL38wCR5tBW5mLIUjR9E9oS6Rhg/aIv6YlYKHqrmdnNMe4C3zuPRVc0TlZS3ztGrgkv0wE2a1zjwAz8jmtd2d1YUjPeGPvJI8tPRWWh6OU0QsyJo7gB8lV1CchhlJsqtl+zp3AcXC38VlPUPV3XSfaSBg4C5+Vvmtnjha3RoHglFV1GWyozWg6qIRnLI5577fLP1Vm2f0Io4sxE0niQCfM5qyIVW2ybDaGhjb7rAPBOAF6hQSCEIQAhCEAIQhACEIQAhCEAIQhACEIQAq90n+zf4fxBCEBYUIQgBeP0KEIDBNtf+5P+L6rRti6BCFLIRbqPROEIUEghCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUQEBEVFRUVFRYXDxAVGBUVFRISGBUWFxYVFxUYHSkgGBsxGxYVITEiMSkrLi4uFyAzODMsNygtLisBCgoKDg0OGhAQGi8fIB0rLS0rLS0rKzctLSsrLS0tLSstMy0tLSstLS0rLS0tLS8tLS0rKystKystLTcrLS0tLf/AABEIAMABBgMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwECAwUGBAj/xABOEAABAgMCBwgLDwMEAwAAAAABAAIDBBESIQUGBzFBUWETIjJTcYGRkhQWF1JUYqGxstLTCCM1QnJzdIKTlMHR4ePwFSSiM0PC8WODs//EABoBAQEBAQEBAQAAAAAAAAAAAAABAgMEBQb/xAAiEQEBAAICAQUBAQEAAAAAAAAAAQIRAxIxBBMhQWFRIhX/2gAMAwEAAhEDEQA/AJxREQEREBERBxWUzHd2DGQmwobXxYxfZt1sMYyzaJAvJq9opUadSjsZZsIcXKdSL7Ve33RueU+bmfPBUT4NxvmYTdyc4RoXFRt9T5L+EzZQ02IJNblknz/tynUi+1VzcsU/xcr1IvtV4cVMdpSOBLzhI4p0UguhnUI4AJ5T5c67yNgxr2WTZiNpvIlAHAaA8DOPGF3IvLyequF1cXXHhl+3KDK/hDi5XqRfaKvden+8lepF9ovFhTAm4vtwxQg75q6HFrClQAabRQK4eqmc+IuXDr7awZXZ7vJXqxPaK4ZW57vJTqxPaKS5GO1w4I6AveIbT8UdAWrz2fTHt/qJ+6zP95K9WJ7RXd1bCHFyvUi+0UmTsm0g70dAXz1lYxfMvH3dgIZEO+pmD/1HmWcPVTLPrZpbxam9u67quEOLlepF9oqHKtP8XK9SL7RQq5pcy0Cc4rzg/i1d5iZJmDIRop/1Jp4gwSc4YDZJH1i7qhdeTl6TemccO1067urYQ4uV6kX2itOVfCHFyvUi+0UMYZY5kZzCTvTReK2dZ6V0l3GbNJzOVjCHFyvUi+0VpytYQ4uV6kX2ig62dZ6UtnWelXaaTecrmEOKlepF9orTlewjxUr1IvtFCVs6z0pbOsps0ms5YMI8VK9SL7RIWWSfBq+DLObpaGxWk8jrZp0FQnaOsrPJONtt/wDKFNmn2bgbCLZmXhTLAQ2NDZEa052hzQ6h2itF7Fz+T74Mkvo0L0AugUBERAREQEREFUREUREQEREEJ+6Ozynzcz54CghTv7o7PKfNzPngKCEQXX4m4+zEiQxxMWBW+ETvmDXDd8XkzclarkEWcsZlNVqWzw+lIMxL4TlxGlXgvFw0GvFxG/Fdq0cxquOfGdAi3gtoaPabiDVRli1jDHkYwjQHfLYeDEb3rh+OcKaZqJBwvKdmyt0ZgpHhfGBAzHWdR0hfP5OG8WXaeHpw5JlNV0eA54PaCCuolYtVDeJmGSyJuDz8mvmUrYPjVAXvxwmeMyjzZZ9cutbdzariMomABMy0SHS+lWHU4Xg9K7eG5YJ+BaaV5ebgvnHzHXDN8m4OYRCjMcN8Hw2gHQ4l4p0hdozCjN3lZaGfe4JYDtcKAnzlaTKLAbLzsSFCIq57YsTxXFtGt5b3O+uFzsjHdDiAk31rVd5h31lWbl1+I2WP0tYnYg10K51djlGIiOgzIzRYYJ+VpHSCuNXWTU0xbuqoqIqiqKiIKrPI8Nv80FedZ5Lht/mhB9d5PvgyS+jQvQC6Bc/k9+DJL6NC9ALoEqCIiAiIgIiIKoiIoiIgIiIIS90fnk/m5nzwFBKnX3SHCk/m5nzwFBSAiIgLfYmYzxcHTLY8MktuEeFoiQ9I5dIOg7KhaFFLJZqkukv48SjGmDhOSNYMej2EXWX6WkaNN2i/Uu8xPwqI0Jjwc4CirJfhQR2RcDRzvI4L5Nx/25lorZGoOAPOPGW9yazzoMeLJxLi1xoDy0I6fOp6WdMrhfF8M+p/1hM/uJpl3quEJ1kGDEjRDRkNjnvPitBJ8y88q65cZlrwmYWDXQ2m+K5rXfIDgT+C7Z4uXHnagWfmIs5MuikViR4jnWdVTUNGwCg5l55iC5pLHij4ZvBz00hSDkSwO2PNRYzxUQYbQ0eNEJv6GHpWwyx4rbk5s9Cbdc2OB5HfhzqzH4aufzpHc7ObpKNhnPDiVb8lwII6Vol7IwoC3QbxyZwvGsZOmIiIsqIiICzyXDb/ADQsCzSfDH80IPrvJ78GSX0aF6AXQrnsnfwXJfRoXoBdClQREQEREBERBVERFEREBERBCPukOFJ/NzPngKClOvukOFJ/NzXngKCkBERAREQZpWYdDeyLDNl7HNexwztc0gtPSApTw1ON7Nk8KQroc7Da54GZsXgRWcoeFE67jBMxu2B4jM75KaZEZ4sGOKEDZujK/WVnmVMvnGx9A4Jj2mg7FxmVVjY/9o9wZbggwoh4LIweXNtHQ02aE6Kra4oYQtwWGucBaPKxMOZDfEZc7cm2XZ6b9wqF6M8d7eDh5PmNZkiwdFkXvMYUEZoa9umHEYXWM1xaQ51HC40FKqTsMScOagPgvALXtII5Qvm6SxlnJcAiJabnsuzbaEZjtXZ4vZVyCGxQNrXmg+rEAu5C2/vguc5JPMd8uPLK7xu0eYwYMdLRXwH8KG4gHvmHglaYqTcp0eXmgycgEtfSzFhOADi05nAglrwDS9pNKqNY7aHlvHOs568x1w3r58saIiw6CIiAs0pwx/NCwrNKcMfzQg+usnXwXJfRoPoBdEudydfBcl9Gg+gF0SVBERAREQEREFUREUREQEREEI+6Q4Un83NeeAoKU6e6R4Un83M+eAoLQEREBERBVdTiJEr2bLk3RZKKQ3W+CWxmnlox3SVyy6HEA/38IH4zYzPtIERn/JWeUy8JOxGmyILOQL34/DdpY/IcDzUI85WqxPZSAzkC3WE4dqE4bF7Z4fmsee48t/m0NSzREhFpztWkisoaFbeKdyjuGglefCcMHfDnXkyj7nHdZflYJPCMSGLINWnhQ3XtPMVfHMOJe3eHVnb+Y/ly8KqFz09eyJDIz82ojYdKtWVsWlxvGkfiNRR8O6028aRpby/mqjEiIgLNKcMfzQsKyyvDH80IPrvJ18FyX0aD6AXRLncnXwXJfRoPoBdEiCIiAiIgIiIKoiIoiIgIiIIQ90jwpP5Ez54CgtTn7pPhSXyJnzwFBiAiIgIiIKrc4mxLM9LH/wAzB0up+K0y2+KQ/vIGyIHdXffgrPKZ3WNqXcW4dITRsW3cKii8GC20YBsXtLl7o/G7+dogx0kTDjOO1aERqihUlY+YPtttgaL1FsQUNF5eSar9H6Lk93jm/MWvCtVSVRcn0IqjHEGoVEQZS0OvbcdLde0fksKrVZDvuX0v1QYllluEFjV8DhBB9eZOvguS+jQfQC6Jc7k6+C5L6NB9ALokQREQEREBERBVERFEREBERBB3ulOFJfImfPAUGr6Fy2Rpdk9gp8221Aa6OY7S0uBZ7zUWRn0LVNxhxY0ysM7Ox3jTyIIPRTp2xYq+Cs+7vTtixV8FZ93erpNoLRTocYcVvBWfd3rEcYMV/BWfd3q9f02hFbrE4VnIX1/JDepT7YMWPBWfd3rJL4z4tw3W4cBrXDM4QHg351ZJL5Y5JcsLjPuV7Jc0AWRz1a7KBgOhsgg0NPeYlK6KrAMf8EUF4LrLa1gRbNqotG6+lK+Tn9PuYvh/8vl35jz4UaHsLTqURYblbDyNqmuZxxwQyhewhr7LoZMGJfDIBzgZ6EGm3atPGxkwC97HPhwnAOfutZaJac0/6YadBGnWuWeUye30npeTgy+buVDKopt7YMWPBWfd3ocYMWPBWfd3rl1/X0toSRTb/X8WPBWfd3rKzGHFbTKs+7vTr+m0GqqnPtixW8FZ93eqHGHFbRKs+7PKaNoPrXl86QuEFNQw/i1d7xB0Wv7OLeLq0393xuSoz0v1uMWGsAPlo7ZaXY2M6G4S5bAe0tiVFk2iLrq3qaNplydfBcl9Gg+gF0S53J18FyP0WD6AXRKAiIgIiICIiCqIiKIiICIiDhsquIwwnAa5jrMeBaMEk0a9rqW2OrcK2RR2gjUV8/RMWYjSWugzNQSCBBeRUXG8NoeUXKT8sGFIkZ7oIedyY6zYB3riBvi4aTaqOYKLntAHBv0G6lOSi6TDXljt/F5wJCYBuu7Ncamy6kMhuYGy5hOgq3+mS2uL12eyQQzStOcEUqdnICr5eCXCov2AgGlCa0KvWJuhwDDey1BEd5DqODRutkUqCQ1gIrffsWPtcfxM19jE9VXwmVNDTNpIFOc86uiw7LqFtNhoTeKi8bFesN1j7W38TNfYv9VV7W38VNfYv9VZo8GlC1t2skOBNKmhAHRyqrYNptWNzVrUjMNNmladKdYbrB2tu4qa+xf6qr2tu4qa+xf6qyMaDdTfc1M2alNqq6HZue0g5rqZ+hOsN1SLgGI4NDoc2Q0UYDCiEAVrdvbv0Cx9rTuKmvsX+qs5hWeEKi+9pbfSumh2KjIJNSBUCtRUVFDnOxNQ3WDtadxU19i/1U7W38VNfYv9VZQypo0at6SK30uBpnVIzKGlKHMQaZ+ZNRN1i7XH8TNfYxPVVDi4/iZr7GJ6qzxoVBwaVrQ1BBpqu5Fa1os8E1uoQRTnFK+VOsXdJjA8sw2SYoIpbBeyodQWmkbncQajmWP+mS2uL12ezV0FucEE3XAEC/MM4Nb9HlVlKHfVpqBodt+hTUN1c/F8GjoTJh7SK2mw3RADeCLTWUrULb4q5PYs7HEECLCaL4sWKwsDWabIcAXu1Ac9AtSIJtcA3cIXV6aXLIyAQ5pDC0gggkioOsEAUTrDdfVWCsHsl4MOXhAhkJjWQwTU2WgAVOk3L1LlcnmFXxoBZFfafDIoSauLCBQmue+0K8i6pc7NXTcu5sREUBERAREQVRERRERAWtxhwh2PLxIo4QFIfy3b1vlNeQFbJcDlFwjaiQ5ZpuYN0ifLdUMHKG2j9YLWGPa6ZyuptHGMNLFHWjtAcTzkC5cgWstX26X0udWtLl22EWRDUscwDNRwNem1m5lyc2H1oSDzfqvRnPlxw8PDDArvrVNla7FV4bXeh1nRUGv8zq8tIqbujyfzWs7obolXFzbhqpW64UHN0Lm2wxGspvQ+1prWlafn5tt1WNZQ2g6t1mlaV01WVj3GrKilb7tNAq0dDNzhXWKHO2++tNaowQ2iu+tU2Wq00q54Fd6HU22tY/Veh0Fx35c2tc3nurt8iC1EoCRoArdcANtMyDA5raXB1b68Kh1I1rb7QdXRS1nrcvQ1zm7wEXihuz0u/FXGA5lH2m1N919KX5q3Z/Ig8rWiu+DqfWrTSkRo+KHbahw5fKvUILn3lzRSmegzXDTsVtXHeVGutOTb4yDzFraVAdW/Q6min4qsNrPjh+yldf8A0vS5roWZzTcc1DdXl1jyrG6Ea1qM2r9eRB5g0VvBpp4Wz9UitHxA6mita/kvQ6r62iNt2e+/Nzq11RdUdHNr2oMLmtzgO28IjZ+KsaB8YGt9++5Rd/NK9BhEVIIN50eWlbtHQrWw7QqXAUJpcTz5+VQecAVzGlD32fQvVJNbaHDpyPPmF6tcHE1JHQtngiHErvXNGbOD+ashakHE/CO4R4Tzc128iaN6+gqdVHWTzFS6oLl2GzZeQTpsigoecqXcVcJdkS0N7jV4FiLrttuJPLc76yc2PipxX6bdERcHYREQEREBERAREQWRorWNc9xo1oLnE5g0CpPQoWwjhAxHxJmJdbcXmvxW5mg8jQ0cy7vKfhTcpYS7TR8w6xtEJtHRDycFv11HjBdRejhn248t+mpmo0qQffBU+O7zVXPRwypqaAne748HNXPsJ512cYAC4Bc7P58wW8oxjWneW13purrrQbeei9Lex9zNXP3W1vaOG52Ls99qufZmSiqAuem9sEKz8Y056GmfXqKudZrcbtN5NBUDXdcSs4WV0UtDQ2zUgkkta7SQBvgaZvKqPMLHff5H81cNz74danmKziaf4n2cP1VXsl/i9SH6qIwe998OsfzT3vvh1j+a9AmH+L1Ifqq7sh3i9RnqoPN733w6x/NU9774dY16a7F6uyHeL1GeqhmHeL1GeqroeX3vvh1ifOVjNmtxuuqbRoLnbdgXsMw7xepD9VU7Jd4vUh+qpoeSIYdN66+nfZzn0G9ZYcFpraJFAacJ1XaBnu5VkM0/xfs4fqpENQDrF9AAK1IzDNmRXje0A3m7aTnupp5VSKWHgmlwzE5+Sq9CoUGOBuZbvnAHaX1F2a51M69eDjDDqvdvdBtOAqM4rXUR0FYoQvW8wc7xW9CsiWvXKTMuHUhvFXXAWiSeSpXdZPMI2I7pcm6M20z51gvA2ll//rXItA70cqsfNPgvZHh8KE9r2jvrJvbyEVHOt5Y7x0xjdZbTsiwycy2LDZFhmrHta9h1tcAQegrMvG9QiIgIiICIiAiLUY2YYEpKRpm60xtIQOmK4hsMclot5qoIvx0wp2ThCJQ1ZA95h6rTTWKeW2S36gXgDlrMHNIbeSTnc45yTnJOte4OXswmo8uV3VYpuWjnhetxEctROJkRrSgR6oCubouCqTXzK2ulXwxcERUNVwCqArldG1oCqArgFWiqLaKlFkoqEIMRCoWrKQrShtiLUrdRXkLE+4jnH4/gVFURFQlRV8MXrd4PC00FbmTK1izk2bSrY14KtDla5y6MJDyTYVty75Vx30u/e6zBiVczodbbyNC7pQbifhXsXCEJ5NGRfeIuqjyLB5nhl+gEqcl5M5qvThdwREWGhERAREQFE+WjDQ3SBJB1zffo3Kashj/6GnyVLC4PHnJwyfi9kw4xhxSAHg75jg0UB1tNFcfKXwiuFhCGBwgsowlD74LpO4zH8Jh9DvyTuMxvCYf+Xqrt7rl7bmnYQh98F4ZiaYczgu1GRmL4QzpPqK4ZGonhDesfZp7mzojl7xrVoeNaknuNv49vWPs1UZG38e3rn2SneL1qNnOFOVZhFbrUidxx3HDr/tKvcddxw6/7Sd4dajzdW61cIrdakLuOu44df9pO467jh1/2U7w6VHwjN1qu7N1qQO467jh1/wBlV7jzuOHX/ZV7xOlR9uzdabs3WpB7jzuOHX/ZTuPO44df9lO8OlR7uzdatMVutSH3HnccOv8Asp3HXccOv+yneL0qOt1brWOLEBpQ6f0/FST3HXccOv8AtKnccdxw6/7SneHWo1LxrVtsa1Jfccfxw6/7Sp3G38e3rH2SdodajuDFaNK2UCcYPjBdicjcTj29Y+zVpyNRfCGdJ9RWZyHSuY/qMPvwqHCUPvgumORmN4RD/wAvUVO4zH8Jh/5eqnup7bjZ+aY5pAd0KfcScNdmSUGYJq4tsxvnWb1920io2EKNWZGI1b5qHTTQOJ8yk3FPF2HIS4l4TnOFoue92dzyACaaBcLljPKVvHHTcoiLm2IiIP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEBUSERIVFhEVFxoVGBUYFRcaFhYXFRgXFhgVFRUYHSggGRolHRYWITEhJSkrMC4uGB8zODMsNygtLisBCgoKDg0OGxAQGS0eHR8wNysuKy0tLS8uMC0tLS0tLS0rKzctLS83Ky01LSs1LS0rLystKy0tLS0tLS0tLTUrK//AABEIAMIBAwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAwEEBQYHAgj/xABGEAABBAAEAgcEBwUGBAcAAAABAAIDEQQSITFBUQUGEyJhcYEHMkKRFFJicqHB8COCkpOxQ1Nj0eHxFSSDohY0c7LCw9L/xAAZAQEBAQEBAQAAAAAAAAAAAAAAAQIDBAb/xAAkEQEBAAIBBAIBBQAAAAAAAAAAAQIRAxIhMUEEUXETIjKB8P/aAAwDAQACEQMRAD8A7iiIgIiICIiAiIgIiICIiAiLW+muvfRmFsS4qPON2MJkf6tjsj1pBsiLkXTHttYLGEwjnfbmcGjzDGZiR5lq3fqB1tZ0lhe1yhkzHZJYwbyu3BaTu1woj1HAoNmREQEREBERAREQERQYzGRRML5ZGRsG7nuDWjzJNIJ0Wj9K+1Po2KxC6TEvHCFlt/mvpleRKy/UjrG/HwPmfB2IEhY0Z8+Zoa05icoo24itdt0GwoiICIiAiIgIiICIiAiIgIsP0z1pwGE0xGJijdvkLrkPlG23H0C0Xpn21YVljC4eSY8HPIiZ+Nv+bQg6koMbjYoWF80jI2Ddz3BrR5ucaXz30z7VulZ7DJGQM5RMGauRe/MfUUtMxmKkldnmkfI/60j3Pdr9pxJV0PoLpn2tdFQWI3vxDxwhbbf5j8rCPIlaN0z7acY+xhoIoW/WeTK+uY91rT6OXMFS0RlumOs2Oxd/ScVLI07sLssev+GymfgsU0AbKlog9Wtn9nfWg9H41srj/wAvJUcw+wTo/wA2HXyzDitXVQg+wmuBAINg6gjYg8QqrmXsT61dvhzgpXftsOLjs6vg2A/cJDfIs8V01RREWB6c65dHYOxiMVG14/swc8n8tlu/BBnkXK+lfbG3bB4R7/8AEmcImeYYLcR55VrON6ydOYy7ndHHtlw7eybroKkdch3GxQdq6X6cwmFbmxOIiiHDO9rSfBoJtx8AtI6V9r2EbYwkM2IPB1dlF/HIM3yaVosHUqn294dI495wtzr43I/Un0WR/wCFwMd3GiuBdqdNM2u1nkscmcwncwsyupTG9e+mcVYiLMOw/wB0zM6uRml0vxDQsOegHzO7TEyukf8AWke6V2vAF5pvotngwrnaAep0AHMpPFRFe7Wn+a8+XNyWbk06zHHetsN/w+GJpdlzZQTrrdcANvwXZOqvRn0bBwwn3w23/wDqP7z/APuJXOOgsF2+Mgiq2h3av+5DTvxf2Y9Suurfx92dV9pya3qCIi9DmIiICIiAiLB9dTixgJnYJ2XENbmacrXEhpBc1ocCMxaCBfNBmpJGtBc4gNG5JoDzJWp9Me0norD2DiBK4fDCO01HDMO4D5uC+fOk+lsRiTmxE8kvEZ3lwH3WnRvoArWKMucGt3JAAsDU6AWdFdDqnTHtqlNjCYVrOT5nZj/LYQP+8rRumeu3SeKvtcXIGn4Iz2bPIiOi4feJWO6S6P7INJcCToW8QQBm9L8twrBEeQ0DYIqlURXlEVCiCoiogqgVF7jZZ05E/Ll4oKBegpY8M47N+ep/hbt81kIuh5C23A18gdL90b6UrJb4Zyzxx/ldI+gelpcHiYsREf2kbry2e8NnMcBZpzSRtxvgun9K+2LEP7uDwbWXs+d2Y/yo/wD9ei0jozogEO0qhoBoCeRWdwmADHU0a0Na4nQa8Nyuk4rfLzcnzcMe2PerHpHpPpbGf+ZxUuQ/A09jHrwyMouHnan6M6nxtAs0SNmNA8u8dSFlcgLiQNG90c7rU+n9VmYYw1gvcDXwrgB+t0mOO3LPn5emXxaxDOjYWOyxsA1IJ+L+I2aWdwuGa0BxGp90cr0zf5foqywsXeJI0GpvislDG57gTzv8gFnttf3a71JDhDlPC+PzuvPZQHDgakcuGg5ADieQ/Qycj9Axp9f1+tCveFw2ci/dH6vxTPCVOPkuPlZPZkjsjfh58PPmVjDHZtwsnhw8v6bfgsxjznfTRdaAfrikuD7OF8rtcoJNcdNI2+JNAcTa454buvp6OPPXf3V77P8ABd6fEOHEQM22j7zyK277i3/prc1YdA4D6Phoovia0Zjzee893q4uPqr9WTU09IiIqCIiAiIgIiIPnL2pdW/oWOcWCoJ7lj5Ak99noTfk4LFdXJMMwl8j6kFkXYDWgEaHYk2dN/dq9a7x7Serf07AvY0XPH+1i+80atvk4WPUL5r/AFR0I8wqLjpLFmWQvqhs0cmjYfn5kq1VSqFEUXlVKogFUVSqIPJVF6VEFFdYCMucANyQ0eZP+itlmeq2HL8QwDmXfwt0/FXGbumOTLpwuX1G1dFdGZYS06EuBcRvp6bb6LKS4cHcXtwq9KoeFUp8LDp+CkdGeH6vc+S9lsksj5+TLPKZZf7ygZhcrdNLcKA5eJVwyMtBcfAD5aBX7cIXUBzAHy2UGJcLAaLA0HK+LvHwWOTPTv8AH4re6HDwiwANG8fE7n5rJPZ3RXH8jr+SnwWDaGh0hyxjw1JI0ocTVqDH9plOVgLjTQ26FyODd62twJ001Xn6tR75x9VkVwGCLq8df18ll8SGwjINXnU/ZG/z/Je8LiWwsN12mXMRy2AzctxorKBhLXSynV91Z0PnyHjy+SxMnW4bXeDhB/M/kruY0MrB6/kOaw+ExGRjY43l1DVxA+YA130A1OnGllInhgzOu+fErUz2zlx9KWGBsbbcQDz5Kza76Ti4IQR2bXGdwGoyxUW34mR0Z15FY3pDEOkPgs31Bwek05HvO7Jv3YbDj/MdIP3QnU1hxzbbURFl6RERAREQEREBERAXz17Xerf0THGVjagxFvFbNk+Nvqe96lfQq1v2gdXRjsDJEB+1b34zye3YeuyD5jKoV7ewgkEUQSCOIINEHyK8FVFFRVVEAqiqqICoqogotq6jYUOkeT8LQPVxv+gWrLoHs/iaI3Od8T/mGgD8ytYa6u7j8jf6d6fLZoBQo7K8Yxp2ry4f6arxNoK590eJO3rr+KuxHHGbkOjAHVxe46AN8OF+BVzzkrzcPDbjuxNgJXyGaIgMc1oLTd5mEe9fw2Q4enisc7Gw5Q1rCZKI1IoXpYoa0vOLmc0iZ+hk/ZkDQAHVteALQB95XEfQ5cwSNc3MSK8C4hoJPAd5c8rbNR3wxky3Z+FpAZJS0vcSGAAcgNgPM/Mq7xjzJM2raG8idb0v/wB3lSyuFwbI4Q94ylrS7K6qaWjUuIsHbdYp0DzZeKvUX+N+Q34fNYxxuM7+3TK7y7ekLKeXC3Bh7v2iSRqfXbmaHlcPYZHZNmt050Bw/W/lt66PhJdm2DdWtrXXQyO/EAee2tWPSvT8EZIDwTeoZ3nE/aI0B8CQkw1N1Llu9ONZWMRRataC86XudOf+ShxmPBsZgA33i4ig7c3fK1p+J6xzPcBC3LTco+J2m55A/PbzWq4vHTSYgRslhzXdvkGUUCXe73GVWoJB10C33/Czj+7uulu6chYajuWU6NA90uOje8dxf1bXTeiMEIII4rvI0An6zvicfEmz6r5qf09JDODh+zuJ4LZL7RriKIIzNaK9N9jsV9B9TOssfSGFbM2myDuyR37jxuPFp3B5HnYVtawwmLPIiKNiIiAiIgIiICIiAiIg4D7ZOrX0bGfSIxUOI1PJsg94eo1rw8Vzwr6j67dANx2CkgPvVmYeT26gr5fxELmOcx4pzSWkciDRVRGqKqogKiqiAqKqqijV07qtg8uGi45mhxHG3W4fgVzSKMuIA3NADmSar8V3bDdDvZ2YheBkoFuXMHACgBZsc7Ry5L4i2dgmztERYB9om3ZgdC13wkHaqUsLJ2zdniZMxfo2R3uuqqDvqPBqqoG9N8ou3SviB7WLKSQG5SHd0HU1uPxU0/TeDcxzJJImty05khDTR0IIdVWpqMS5++7Xen2SztkEbSBG1waCR3XMGYk+NgH5cFfdKdMsdh2SRf2r4QANPia4tA9CKWk/+KZIpJ2Md20bmOgzmx2sZFRvcSL7RtlpNd4DfYrDMxs3ZMbnyxxEEOvIA4XTu0J0d3jx5KTHX9u2tzV9OgdYOs7GzOiJbkhovaDq5+hbEANaui51Gg0b2sP0n1ye91MaMo+J2mZw+wNmDShd8TqtFn6WhbdF0jtfd7rb8XuF/JpvmsfP0zM73SIx9iw7+MnN8iB4LR0xt3SXTUuWsROWtOuUnLmuhZiYLeNtaIFcAFgZ+n2DSJhd9p/db6MabI/eHksDDGXupurjZOo1I1Nk8f6q5jgbTXF196iz3SAONn18vUIupEk/SMsmkriWH4G91v8AC0UfNwK9YfAPcSKDKbm79g5eYFa+lqTDsvOIw2iDWYNzBut948aNWKv8FP2IdGXl3eb3SHEDShVcSdDfkOaCJsMWTXM95ArvABt8ar5arZepPWGfo7FB5aa0bLHt2kZ1BAPxC7HrwJWJwc7i4NhBa5wq7yDxo7/JXGFaGO/bEuY7R9cAfibe7hvZOvqg+nMDjI5o2SxODo3gOa4cQf6eSnXHPZ31jOBn+hzuBw0pDo5L7rS/3XtP92/jyP7y7GooiIgIiICIiAiIgIiIC4R7a+rXY4kYuNv7ObR9cJBx9R+S7usP1u6DZjcHJh3D3hbTyeNWkIPlVUU2MwzopHRvFPYS0jxH6tQKoraKN8oG5UJxJPuj1QXVqKTFNHiVD2Tj7x9Apo4wNgisp1VYZMVECKGcO9IwXnfyXUWdf8PAHjO6R4NAMF3X2z3a11o3ouTQANGZ5Y1pBovBN6gHK0Al3DgQqQOhfJmlxDw1moBYe+L91rGnQeo34IzcZfLeOkuv2MncRCxsd8h2klDxcKA/d9VquNxzcxdPMXycaPav8rvKK5FwrksLjMa99tLz2dmm0GtIvS2N0Jqufmoo8O47N58hdcADufAa78k2TGTwv5umDtEwN+06nu+RGQerT5qwnmfI7M9znu5kk0OQvYeC9diKac2p4EUK3BBvvA7bDXmrinBpkaKYTlAsbO1LcpJLhpxuu7ZJNo0giw/uFxpjjRcAHEAbnLe9WQDV1y1U0MFkta0udZykDMabZNtuqy2dvh5WvUkFRse06HulpI311AuyK38eOoU0MQfK3sgSSLObI1ubUkN4ZfTTXgFUUjEkjbBJMTaG5c1gtxObgGnh9or1TcrHNce1usveJOpOa+G4FevOrjDYNru1zuIeA45WhuU1uN9geXBVbIx0bWNb+1DqGUDvXVEnwqvX5BdRYZ7sQAR2DiLs5iSa1cBws3p5+SjihiDHiTSQahxs2OQA4/rmrgwSSTBkzuzkDRRqySBbdRtpW1/koozCGPZIKkBsOAsu+yddN/1SgmdJJJ2bC3K/g91gkD3cree/LXz0klj1zSEuN33jppwA2H4qKd8ro4y8ANuu03eQK1oHceO6kmbGx2ZzgXHXMTZN620ePgEGSwLxiW/Ry3KRZgcboE6uidmN5H73sHeBK6j7MetRmZ9DxBP0iIU0u957G6Fpv427HiRrwK5Axsrh3bax27iTTstGg0bmiDrW4WYZiu0rE4ebNicPlL5GgjtA2gJm2Bmc3QP4EUeaD6FRYLqf1iZjsOJBQlb3ZGfVdzH2TuPluCs6ooiIgIiICIiAiIgIi8TShjXOdoGguJ8ALKD5z9sroxj3yRsLSXmM7ZXljWkvGunec5u3wrRInW0ueRyAzgHbctALiNRsB5rNdfcf2ssfeJzB05sUQZnXVen4+q1pqokLRfPxPH0UrVG1L/X+iCdpUrQvETdFM1qI9xwmTucT7v3uAHnt6q2wULHSBspLWk0SKscNbFVdX4WrsNUnSUWdonB711IOTuD/ACP9QgtQ2NkgyOzNstcDVUdCC+gHAi9aHhzVy1pE2XEF2UlocQde6KFvIs1sTyBq9F4t8zWta0l7AQddMvdDabe4sNOmwbyK8vec7RLZDO6Wh3AaGiNLoAX9lvJBcwOEUz4y3M1wLcrTmIDgQGZgLOjiw0AdSRwXnDRS9lMWFrGDRzHO74BNUNACSCQdro6WApRimxYgugbTANmOcbbVkh27Tpm+yR4KOOGTs3yiQUTlcCTndmNm747O34E8Cg8vjiEDHNsSBxDiXXWmlNrjRN+BGtAqdrnzytLKa+hq4gAFvI8qo8aGmwCimMTWRPjBEgJzEuvvCiO7WnP/AGU00kkmIa7WN7qOZ9jWq002saFBWHCh4lLmyGUE0IxbBqAdr014HY3svEuJDoWtyU5hOoFAg1RJ9Pz4lXnR8/YzPY+Rwa6wXMOX+EPBo6easoukS2F0AssJFAEgaG6cOXHz87U7tXp1NeV5i4HB8Tp3tLXC7jIzADQOdpYOx/EKrJo4JHs0cxw1oguF6jvV4i9ON0sbne5oaScrdh5/krqLFxCF0ZALrBBAF76gu/WnyVZXkUEzQI5LiikduQ068geR5jl5r0W9k90bQwvPdY54J046X4mvE+KxcvSD3sawkZW+AvwBdV1/okWpJO51J5nmSgzT5mt0e8ue2wcpbbjs0irG9eYHqr/BHEMLJLbh26O/aC3OqxTYh3i2jRFUbOqxeExpjFRtax3GQC5CT9p15f3aVM5JJJJJ1JJsnzJ3QbH0H0/9Exhnw4PZE06PYOYd2gWao6t100vjfdej8bHPEyWJ2aN4sH8jyIOhHAhfO3R2AkmzdmLyi9dL8Adr141xW2+zvrR9Fl7CY/8ALyHcnSN+2b7p2PoedxXZEREBERAREQEREBa77QsaYujMS5vvOZ2Td7zTERiq+9fpw3WxLQ/a7jGswsbXXQeZjX+AMwzeGYt9a80Hzp1ilDsVJXutIjHlGAz/AOJVi1eC4k2dzqfM6qVgVHtrVcRsXmNiuo2IgximaxbF1c6lY/GUYYSIz/aydyPzBOrh90FdO6veyLDR07FyOmd9RtsiHnRzO+YHgg470b0XPiH9nBE+R/JjSa8XHZo8TQXROgfZJii1zsTIyO2kdiO+51jZ7wcrfMZl2DA4GGFgjhjZGwbNY0NHyCuFFfI+OwcmExLo3aOjcW6jcatOZvIiwR5hPobGtDnyEh2oDW66aOGY6No2L1vQ1RC7P7Z+p7JYHY2JtTR0X0Pfbo2z5ADXkFxPBZHEMksC9KNUTQskg1sGk1sQT7qqJMFjTE45cwa4EaHvAG6IcK7wvfS9Rpa9YKFzo5KkDQGgllXmo6UeGvHxrYlWrnNLqaMo5Ek15mvyUr4ZYj3gW3YrSyNiK9d/kipS6HsPdAlDhZs5iNdhtWovyHMquJxMkzASCezFG3XofiAO3AHTkeKnccPC0Ob2hlLg5llhjMJBDmuHvCTNYJGmnC7VlP0ge1L2aWeNbHgQNBppp6IjzIXOJdI4k8b+WqoJWj/b+gVu97nElxJJ1JJskniSVOyAt1ccngfeP7u/qdPFNrJb4UOY77cv9P8ANXMGFO50HM/l4+AUDJjZIIAGwLbJ8wbH64r2JCTZJJ8UWa9riSJt23bifHw8F7YP9lSIr2G0iJmKZqhYpmojZ+i5BFhHvDgXHXR15XGst1VO201qjtwwjVA06jmdB4k8Atx6v+z/ABuIpz29hEfikBzkfZi0P8Rb6oNu9mfWntWjCTO/asH7Nx3ewD3T9po+Y8it/Wu9XepuEwZD2NL5h/avNuFgg5QKazQkaC6OpK2JRRERAREQEREBcR9v/StFsIOpDW169o7/AOsLty+auu+CxvS3S0zcHA+ZsbjHmAqNpG+aQ01poNFE33UHOxqr3BwOe4MY1znu0axrS5zjya1up9F1/qt7C6p/SGI/6MP9HSuF+gA811joHq3g8EzJhYGRjYkC3u+/Ibc71KDiXVn2SY+enYjLhoz9fvSkeEbTp+8QRyXVOrvs56OwlOEXayj+0lpxB5tbWVvmBfituRAREQEREHmWMOaWuALSCCDsQdCCOS+a/af1Xd0fjS5gqCUmSM1p9pp8QTR8x9al9LLA9dercfSGEfA+g73o3/UeNj5HY+B50g+Yp52dk2mhpsjQbgAV3vDYjyPFW2JxbnkE7gAXzrYnxrT0Ckx+FkgfJBK0tex1OaeDmki/6j1VpSqC9BqBVQSMlc0d00eYq/Q7j0UaqFUhF3VWqZiiCkaiLuIq7bqFD0bgZp5BHDG6SQ7Na0uNcyBsPE6BdM6teySZ9Px0nZN/uoyHSeTn+630zeYQc8w8bnODWNc57tGtaC5zjya0ak+S37q77MMXNTsSRh4/q6OlI+6O6zzJJ5tXVeg+r2EwbcuGhayxRdu933nnvH1KyiKwfQHVPB4OjDEO04yv70h594+75NoeCziIoCIiAiIgIiICIiAqAAbKqICIiAiIgIiICIiAiIg5L7bup3aM/wCIQN/aMAEwA95g0Enm3Y+Fclw9fZEkYc0tcAWkEEEWCDoQRxC+ZfaX1SPR2MLWg/RpbfE7kPijJ5tv5EINRXoKgXoBVFQvYCy/V3qvjcc6sLA57boyHuxN53IdNOQs+C6z1Y9jcEdPx0hmfv2TLZEDpoXe+/X7o5hBx/oToPE4t/Z4aF8rhvlGjfvvNNZ6ldV6s+xoCn4+W/8ABiJA8nynX0aBXNdXwOCihYI4Y2Rxt0DGNDWjyA0U6bVZdE9EYfCx9nh4mRs5NFWebju4+Jsq9RFAREQEREBERAREQEREBERAREQEREBERAREQEREBERAWA67dWY+kcG/DvoP96N/1JB7rvLgRyJWfRB8ydEezfpWeV0f0Z0QY4tdJLbIwQaJaSLkHIsBBXVOrHsgwOHp+KJxUvJwywg+EQPe/fJHgF0dEHiKJrWhrQGtAoAAAAcgBsF7REBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSExMVFhUWFRgXFhgXGBUWGBYYGhUXGBcVGBcYHCggGBolHhUXIzEhJSktLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGy0lICUrLS4tLS8rLS8tLS0tLy0tLS0tLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgEDBAUHAgj/xABQEAABAwEEAwgMCQkJAQEAAAABAAIRAwQSITEFQVEGBxMiYXGBkRYyU1SSk6GxssHR4RQXNDVCUnKz8CMkM2JzdILS8RVDRGODlKLC0yXi/8QAGwEBAAIDAQEAAAAAAAAAAAAAAAECAwQFBgf/xAA5EQACAQIEAgcGBgEEAwAAAAAAAQIDEQQSITFBUQUTYXGRsfAUIlKBodEGIzJCweHxFZKi4jNicv/aAAwDAQACEQMRAD8A7igCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgNNux0o+zWKvXpxfY0XZxAJcGgka4vTHIgOLnfWtwwNqo+BSQD417d31R8CkgHxr27vqj4FJAPjXt3fVHwKSAfGvbu+qPgUkA+Ne3d9UfApID0zfUt5MC00idgp0yfIrRi5O0VchtLVsuHfM0l3dnimexX6mp8L8GU62HxLxRVu+dpD6VppgfsmKOpqfC/Bk9ZDmvEU99C2uytdI81Jh8yhU5PZPwJckt2evjNt/fVPxLFPVVPhfgyM8eZ4O+fb4ltppn/SYipTauovwZLlFbsoN83SRyrsP+kxT1FX4X4MjrIc14l1m+JpY4h4PNQB8wUOjUW8X4MKpB7NeJQ74ulR/eDxA9inqKvwPwZDqwW8l4o8jfI0p3RviG+xOoq/A/BjrafxLxR5+MvSndW+Jb7EdGqv2vwY6yHxLxR5+M/SXd6fimLEZDyd9LSIwNop+KpqLoFfjQ0l3en4pikHVt7jTta2WThK8cI2q+mSBdmIIJbqMOjoQEpQBAEAQBAEAQEY3zPmy0/ZZ96xAcx0LZKZs9ImmwksBJutxO3JAZvwOl3Nngt9iAfAqXc2eC32KbENpFTYafc2eC32KcrIU0y2bLTmOCZ4LeT2+RVLCnZqZMcC3nuNjKfcstODkzHOaSNhZtH05wps8FvsXSpwUXoaVSemplmwM+ozwW+xbOrephUkWK1jp9zZ4LfYqTRliaTdVZqbbJWLadMEXILRBi82ZwwM7FrUOsjUea1uFv5MtXK4K2/E5s90kHX610s2qZqpWVjBoG5UczUeM3pxj1LWpN06sqXB6r163NiazwUuOzNxYqsHnDvRK6VGRp1Ik93LtixhxzJI6Bej19a0qtfPUyr9unz9WOjhcOoQz/ABa/Jem/mWbeZna7Pm7Y+UjqW/Tq2RoYiheV/XL7mJam3WsjaG/8T7leE00jUqUmm/l9TJOiC1sa7se3zlcfpDGZVKXM6WFw2dpGpqWFoJnIAnoHrOS8rPFpHbVA12mbK0MoYC+5gNQgRN3ijo1dAWD2hSbsS6dkjN0Noc1SJGGE9OMdQ6pW3RqXVzFKHA65vPiLHVAyFqq+ixbRiJ0gCAIAgCAIAgIvvm/Nlp+yz71iA5xoP5NR/Zt8yAlNm0rSDGt4KSGgE3WGSBicRrVoxbdkQ2kbChbqRH6OP4afsW5DCytuaNXEJPYyfhFL6n/Gn7FZ4eXM1/a4r9p4Npoz+hHUxV9kfMy+3K2xc+G0R/dDqasiw0uZT2uD4AaQoj+6HU1W9nn8Q9pg+B6/tKl3LyNTqJ/F5l1VjvlMPSGkKRY5opAEggGG4GM1bqJrVsyRqxeliA7sqkWOseRv3jEzZWWy3RzGtUiDyractmYIxvoY9sPaP+qYPMfwetY637ZrdMy0uMeZuNB2Y1qopjpOxuMn8bQstfFww1OVSXC1u98PXArSwzr1FBcTpbWBg4IZNa3qAC89gcW51ajfF38T0NWioxjFbLTwNHUJc4fxdUf/AJXcWItBdxzJUc022ZlhYH2ihTzBqXvBplw9ALLKvlpyfJW8bfc1ZUE5JfE/L/BJdJ0I6j5/cvD9O492jCL3b+n+Tu4DCpXbIvXsRcCAJktH/bzwuFGtZ3b5m86ZqLbZb9ctGIbFMct3M9JlbdOpkpXfHXxMM6d5WRJnMbZ6AjMz1xifMP6rKsVamlHcxulZ3JhvOn8yq/vVT0aa9HHZHLe5O1JAQBAEAQBAEBF9875stPMz71iA5xoL5NR/Zt8yA6fomiDQpYu/Rsye9v0dgIjNWRVmc6oGwONlse7rIBxQCnXBwF7pa8ecKjZJS1jiOMntHYbcFWD/ADI968yJr3H3MtAxrfkDgRAwAgD+HylbE9ykVZGRSrB0xOCqWPcoSjA0sQaVSHTxMpBGefkWagvzIlKn6Wck3ftixV+Zv3jFtV9EY6Ryxz5as97xMSVmeHGQW7R5RiPN5VZ63XMlaO5Pd7PRhuPtLh23EZ9luLzzEgD+Arxf4l6QeaGHi9tX3vRL5K7+Z3ejKFouo+OiJRa5aZObw49AGHnK1ujsRaqnzj9TeqxujWWGlPSI68T+ORd6WLScdeH2NLqtGxuVeTb3YYUmu6CYYG9RPUp6Zx7odHRmt5yX8u/0RrYOl1mKkuEV9ia24Xhjr834lfO6uKnWqZpHfhFR0RgOohjC8jFoc7p/r5lVSzSyltjS6HsEcYjH1nFb2IrX0RihDiWN1FaXMYMg1ZMGnlbZSsldIne858jq/vVT0aa9rHZHn3uydqSAgCAIAgCAICLb53zZaeZn3rEBznQI/NqP7NvmVlFvYhux0qy0Hus1IMIB4Nuc/VGxc/pHB1a6UYStZ6+lxRnw1aEHeauZlosjnXYqOaQAD23G4zCTAcBMNI19sc8luLRJMwvV3Mg0RABLsP1nDrg49KxykSkWatEgPM4FhAEvMYcriPIFWE/zI968yZRvFmLYNKNfxYggasQABiXOMQssqjzMpBxeli7Xq1LwNPFhAIIggjOZ5lr1KlbOlHb5GyqdPK77mtfppwtAoTi6nfbgSXEOukYNgAcXEn6QWfPI1Em0W6eknVW2gcUNa4NEDGLoJDpGYcXDo6TbD1ZOtHvNypQUYa8iBb41P8xrn9Vv3jV2cTG9NtHPjHLI4sytxY5FhhUvAOHvFyi5znMawS4uAaNpJgDrhWnXjCGdvReQVO7sd90do5tGmygzEU2tYDtI7Z3SZK+UYnEuvVlWl+5t/ZeB6mjBQpqJrdKumq6MmsI8mPlK2sLOUIJ9pZq5jWGmGgPOQBdPMCPUVnrV51JZYvXReRVQSV2eNwVhfdfWeIfXfwhGsNJJaOm8T0hbf4kxkJ1I0IP3aay974+SXyZr9HUerhKpLeTv9ie1qGAC8jGZsRmarSXGYWN13W+F/VbVH3ZKT7/AzW0BoXA46mtMc93E+QdSZ8zS5k3IDpGvLgeT1r0FGFkzUm9Tp+838jq/vVT0Ka9WtjhPcnikgIAgCAIAgCAi2+f812nmZ96xAc83O/JqH7NvmW5h3Yw1Do9grVm0KZLKQbcbBdVuyIwkXMDGqViqZHJ3f0/stG9kZNRtY4mkzorvHLqYseWHxPw/std8vqW2PrDEUhsg13nqDmxqzVHTpyX6n/tX3Ge3BmNbdLvDXNNNkkEYVJIw2XcYWOFKkpp5nuuH9l41YvciWnLe9tJwAMOBBaIAc2OMIykgkCfMsUn7zMmEo9bVtwW6Whv9wukeEswBLoButBiGtA4vG1nVHJsxVoGxiKLhN8mXH2MU7YK9+81tDg7pGN4vvF4dOUXREas1HWKMnHkYaWGco3TKWfRoY21Vg8kVal8NI7XiMBbnBxBM8vItnD2nUptcCZp020+JGN1LA6y1REyG4beO3Bekw7SqLNsalSDktDhWmtGmi+R2hy5P1Sud0jgpYapmj+l7dnZ9itOeZWZu966wCrpCmXYtpNdWI+wOLzEOc09C8v03iZU8FKK/c0vHf6G5ho3qLsO13rrL2s5e3zLw1rysduMjSuoFwc6OM8wOcm8fIAt1TSaXBf4Mm5sa2jRcpsiRdg8uJn1rXjXeaUu0tFJppm30dZg0gAYwXdXvha7jUrvLBXMVWWj5HrTdo4Ok5044NHOfwepb66Hq0455mKk9TA0I6/TNTa83ebAeorTxKyzydhnlK7se9JGKNQ/qO8o96rR1qR70DlVatMc69VGNjUbOv7zfyOt+91PQpr0i2RxnuyeKSAgCAIAgCAICLb6HzXaeZn3rEBzzc5PwahHcm+ZbOHTb0MVS1tTqdgrubQohsfo2zMHGB+sIWCq7VGu0tFpR3PYtDzPGYM8xymMnrHFiVSHxIs06stEux13ZEnykKkHeKInUjfcj+kbO9ruK9pGJ40zygEjPHaqpe+u8wqpDOlcy32SxvZLmF2XFl8HIzGSzyo+/wOhFTg3KMXf12l+nTstMNDGwJmBeAHkSEOF7Fqk62jyt3+hc+F031KgqHicS522fGvRhzKXQlLdFVJ09tyw2G0qreEDrw4oAd1mRgcupRhqNSjPNPYVKkajWVa8SIbppbZqk/q+m1dqjiItpx17DJTpXkk3bt5evTRz7SFnbUacAZGI28o9q7dJ08TSyN3T2f8P1/eDGYeVOd2rPiv5Xr/re3rrDwVrrnMGyVADs/K0pB5V88/GHR8sNRg+HWLykMJVTuzpGkTF1uxsdJn2BeDo63fadeM9CrmXWsOxs9JGHkRXlmfbY2KUtbm0oMvNYT9XzyT51mpdGYmq3kjo+IcrNmu0bpMOqVn6hdaOkmPR8q9X+HOiXGUnNapeb/orUtZRNFux0uXuZRZiRjzudg0eXyr0OOwitlRjcrOyJTY7PwVOnS+qIPKYMnr86+W46Eo4ieZW107uBmitLmBp935CoRqbPlUYVfmxLvSLOX6Ppl9Yt1Ng/jrXqK0slNM1IK8jsW858krfvdX0Ka9FHZHGluyeKSAgCAIAgCAICK76PzXaeZn3rEBBtytI/BqEj+6b5l08NScVdmtUdzptgqDgaYP1G6jsWhX/8ku9l4zikkz1fAbIcBicCc+MRrWs7JbkxlmVzFfaNYkSdYJaTjMYTOB1Kjqa249v8cyMry54vTs1/teG5j2q85j5dN2PoXfIcdaXkrO/FeaJw8etqWb0Tvtbhf12GdwzG3Wl7wXNYcHQAIgcwwMrak+Bne7MunWbBhwddGMG8emFUkqyuCJBMcxGqdY5UuRa+xj2+oCx+JkM5QIPknBUra05W5FqatNd5FdKWdj6T2vaHNIgg84x5CMwdRAXllja+Hlmpys0dV01JWZzzdLufdQHC08aJ2STTwxvZ4YE3ug7T6jof8QwxTtJ5K3/Gp9pee+vDJZZerqrNDhzj3dnYY24yuG2r9pTeyei/j4C3vxXjoYvouUKkbVISi/rZ2+Tb5HIrdFTwt69KWam/Fd5NdKP455/UF8toL3UbHWmdpGnDSdjRHVH/AFWOjLVd5tU56Gt0lpjgbPicRTujniJ/GxfXejcEpYWDt+1EuqkiI2DTQbRLpi88noA/qu/gcCoJysYJVkmeNxtc17Ua78mTU5J7Wm3rM/wrWxFBODlz9eu8vTkpM6Y1148zfKf6eVeA6b6JU05rdI3U7I1e6OoGWd4P0m3RzleOwicqy7C8n7rIjub0XJl2A7Z55BkOk49C6+MxFtF8jFShqdF3n/kto/fKvo017CH6V3I4Mv1PvJ2rFQgCAIAgCAICK76XzXafss+9YgInue+S0P2TPRXobmpYnWjXk0mYxDQMMTkNuXUvP179ZLvZmhLMu49U8Jhs8Z2JInM7Vrx0uNeC+pbpFxaRDQLz8Sb3947C7kR0o1mTTKUZVEvd01evzfrcxbXSgPBe4ggEYwMCARhjGIzJzVVTtbV7rzXrW5sU6rVSzSu+Nvk9NUt+FjZipFxt6Ja36MjrnDLzLbluWe5e4N/1x4I6daqCrLQ0iQZjA55xPrUBssaTqDgah/UJUTV4tE07ZkRW3umi6OT0gvHYuDg2mdmDuYrIfTLHiWkXXA5EHA+RcmMpU5qpHdO6Nhogb9ylrs1UVKVPhGMeCLrmgloOUE4SNUa8CF9Dl0n0Xj8O4xqdW2rOE72Tfwy4a8L25mjUdbq5UprMpK11o/mtnbnvysSPSteHuPN5j7l4alSskjz/ALS8rvutySWtn5MDkHkE+tacY2kdaE9Dle721kBjQcCD5MCvu/QVK/R0H/6ry0Ofia0lOyZHdLkspMp67oB53dt5j1rtVPdw9o8XYwOTb1JRuPYKVFv1qhvn7LRxBzYz/EtWrTvpwWh08C7Q14k90baxHOfx5lw8ZhVNNHUjIwt2L7zKLGiS+pl5F4bG9EqlVz01q9DJfQ09otopkUWQYIvka3bByDJc2v0fKFTXV2+pZTSJxvOn80r/AL5V9CmvVR0ijz0t2TxSQEAQBAEAQBARTfS+a7TzM++YgIPudcRZaH7JnmXYjeMUYGb+z6bqtAaIgZSOSFglh6cpNsR02LrdP1R9XMnLaqrB0u3xLZmUbp2qMi3MnLaST51PslLt8SIvLou366np1stNRo4stMwQM9R1/iFjlh6KevmTu0+RedpW1NbJaIaAJLRhqCv1VKT0ZkUuZYdultG1vghVnh0loXjKLZQbprTtb4IWhK6dmb0KFOSuKmm69RpYS2HCDDQMFinWyasv7LHdFLQLtF38PpBeYx8+sbZs042MazgyLvSDq9y4j03Nlm6ouAab0Z8yLLZ3NeSbkrEF0u4OqPIyJLeYjH1DrC6mHi+rizyPSVLq8XUjwlr46+d/AlranCU8My2R0ge1YcPh8+IUOZtUsRdM5HutipWaPoipwf8AyE+tfe+jqKp4RQXJGKrLNK5o9INNW0NZtdHkAJ85W1VX6Fyu/sU3bJFaK9xxjkY0bEhBSil8zYp1XBm/sNui62eXqw860KtHdnWpVsyLe6LTwYG3e3xDf1RkTz6ukrlYjDqOttTZc+RqtBODjef2oIJ5TODVzqfRynL3l2v12lc2tjqO86fzW0fvtX0KS5klaTRynuyeKpAQBAEAQBAEBFN9P5qtP2WffMQEP0CR8Fofsmeiu/oaxv26ClodwjRLQ7J2AIlaUq8U2rF1EuN3MuIkVGxzFV9oXInKV7F390b1FPaFyGUvs0FXADRWbAmBdmJzzHKqOpB6uJNmUfoCuQW8M2DmA2JxnUNqhVIJ3SFmWuxZ/dG9RV/aE+BKRTsUf3RvUVrVbSNujXyHi0bn30mOqGo0homACtOpSvFm3TxSlJRtuY9aoDSPR6QXmMZScbm4lqUFTASOZ3t/ELhylyMyiV+GAduHHmafVKpvy8Q4ciEWi2NdaKlINc0/pBLXNBiAcxie18Erv4anJUFJv6nnPxBRso1VutH/AB9fM3+jdIXaYfqEtPJElvq60g+qrwqPZSV+6/8AlnCpT/M046HPdL9sw/5rHda+5dHvNh01yNqLvFMwtFsm1OJ+iHHyhvmcs1bZFo7s2IN507HOPUTHmCt+mNuxFj1Srm88jUQ0dShxTST7zLTqOD0I5pbSN6sdgF0cwzPSZXLxEE62U2varK56raahtOkzOQTyknBYK1anTait+JdYjU7xvMfI6/75U+7pLyNT9b72YifqgCAIAgCAIAgInvqH/wCVavss+9YgIlobRVsbZ6LRQYQKTIPDNEi6IMXcF2Oup23+hhyslNnttsa1rfgowa1v6ZmoQT2utak4weqZKuXBpS196Dx9P+VYrLmWK/2rau8x/uGfypbtAOlLX3oB/r0zq+z+IUqKfH6Af2pa+9B4+n/KmVcwV/te1d5j/cM/lUOK5kgaXtXeQ/3DP5VGVcyTCt2mLTVpvpiytkm5Pwhhh2HFMNzVJwaVnxMlGSzXT2ZprNZLUYa6nTDX5OFdrpjjYQMcAdeorm4zBdbTeXc6EcZBTWbibAaPqNa7Fl26TJcBgO2JByAgzK8w+h6+fJpmfC5uPG0cuZ7I80LK5pN59MEM4QtLxgz62OMKf9CxU2lFJ303Ky6Rw+W7fC+xY0ruYrPeyoxrZBx44yIg8+BKzYfo7EUbxnaxr4ypSxOHlTvutNOO6+tixR3L2m5UYQ3jQWm8M8R5oW28JUkr6HkIYepF6ke0juBtr4htPCJl41Hm2BfSehOlaVHBxp1b3Wmiub+RvYxrFve25lVzy2lBHdMe2adnIunU6YwsrWb8AqTTuXLFuBtzQ682ni4kRUGRM7El0zhnz8CVTkUsm4C3tDrzaUlxI/KDXlqUy6Zwr4vwCpyI3at67SV4uPAActUDadmwErhYnpLNiHUhsZVDSzLdj3rbfwjahNAgPE3aod2rsRgMxEQuZCrmrdZPmZTsG8w0iyWgHMW2qDzhlIFa83eTa5sIn6qAgCAIAgCAICJ76vzVavss++YgOFU911vaA0WqqAAABeyAEAZKczIseuzHSHfdbwvcmZixTsw0h33W8L3JmZI7MNId91vC9yZmRYdmGkO+63he5MzJsOzDSHfdbwvcmZiw7MNId91vC9yZmB2YaQ77reF7kzMFButt2q1Vc5zGes5JmYWhfpbpLdDYtpbsBeBdkwfo4Zknp5lDVybsyP7et4Hzg3AEQKokAaou64wGvBVyRF2YHZbbu+quIu5jtfq5ZcilJJ3RD10Z77M9Id91vC9yjJHkTmY7MtId91vC9yhU4rRIq4pjsy0h33W8L3K8fd0QSSKdmOkO+63he5WzPmSV7MdId91vC9yZnzA7MNId91vC9yZnzBTswt/fdXwvcouwUO66367VV6x7EuDre8a8mw1iTJNrqEk6yaVEkqAdFQBAEAQBAEAQHNd97TJLW2GmcXw+rkYaDLWmeUT0BWSKtnH61muuLRBOfatB9fnU2RFzy+jABMap4jcJyE68+RLIXPXwUwTA1RxWGZ2xkeRLIXYo2e8QABnB4rMDyScfJCWFyho4wACdUsaJxzM5JYi56fZ4iQACAZuN14efbCWRN2VbZjdm6NWF1hwPKNc6o5UshdijZw50ACNtxmc5RKWF2UNHECBeJiLrQOeSlkLs9VLPGJAiJHEb5diWQuyrLLLbwA2niNwBMAjWeaEshcpToglwgYRHEZiTt+qlhdlHUQCAQMyDDGmOb6yWF2eqtmgTA1xxG4gHM7EshdlG0QQDAxGPEbhzbUsLnllEGRAkRhcbiDrJ1dSWF2KlEAgQIym43OchtSwuVdQ2NB52Nb7ksLsvfAMJw8CnHWHT5Eshdlqy2W/OAGf0WZzkZj1pZEXZ0nek0qbPWdY6kBlbj08ABwgEEYbQ2P4QoaLJnXlUsEAQBAEAQGPpG2Mo0n1XmGsaXHo1c5yQHCrRVqV6lS0vaS6o4kcVjwBkGw46sB0LIYzRW+zjZB+y1sdR9SAwaPFzDQJjFrXmNonWgPIowbwALZiSMBsEHOdmKA9PaHxdALsoa0NBIwAEZoCrQ2C1wAzIhoJnAQXTMdKApTplkG63kLgHThsPs5UBV1AEm4Lw5ow1k7EBVzWEag7CIaAIEZ+XGEB64K7LXtDZ/VBP6pmcJPKgKMoGbzWy2TiRkNUjpQB1IOIugFxJkBsDk9eyEBV9IAQ8XSBAF3bJxM8vLsQFGNLZF1nOQHeXp1IDy6kMS0BwmBOB6pQFarQ4/RBJ1ANHqACArdw4zQMZBjUQJO3Vt27UBbYIiACMcxOYQFIbM4dRQmxcpmn9KOhuPWgserPUptqTILdpbMHLtTP4CCxs36SpNuvpvIexwc0hl3EHkQWOqWPfWsBptNR1Rr7ovgU3kB0YwRmJVLFrm20Hu8sVrrChRc8vcCQCxzRDRJxKWJJOoAQBAEBz7fQ0g54FkpuAyfV/6s9Z5wrRRWTIBXYY/RUus/yKxU1FQFpJLWmTMTgBqEXfKgMG0PLiDdAAnAR0fR5SgKvrgtDeDaCPpBzrx55wjHUBkgLdAxm0O24kT1BAU1gx0T64QFzCNUc7v5EBUFu0dbv5EBXi5y3rf/5oCvF2t63f+aArxdret/8A5oCou7W9b/8AzQHmo0H6TRjObz/0QFy82I4vPL55u0hAebM4NMm47HI34yiDDZQFKoBN4XQJOV+MdQJZhmgAcPqA87j6gEBbdMYADpkdUBAbncjSsr/hDbVUaxhayAXsYXEPJhrnCQcBl0yMFVl0bayWPRb6NK89jC93Cubw1O+wmzCLOajrp4O+wmXEXSYJF8FNQajdYyzNZQZZnhzWOrg8ak54vPaW3jTJvNwdddsA2qUCOIQEBMt6P5zpfYq+gVDJR35VJCAIDG0jbG0aT6rsmiec6hzkwOlAchtdZ1R7qjzLnEk852ciyGMwa7UBqLXTQGsq00BaLEAuID01nmJ6hKA8UaUnKegnzIDNZTHBuF0yXN1OGGJxbmctsDDkQHqrQinTF3O+7tX6zd2/5flQHq1UuLTETDNhMSThxcQeQyUAtVHjjintKX0XdzZyoC7UZFcOiYe0zBOUHNpA8iAtNs4bUMtODiMAQcJGBMgc8ICtks/GIunFlQdq7ubjt2gIC3SsUtdgOKJ40gn7IJ4x5AgMapQjb0ghAexTwCAcGgItUtNW+8XsA5wGDcg48iqXLrrQ9oBJOOUgCebDFSFZ7GFX0jUmASOgesKAeqVrqn6R6m+xAbSwucWlzpImJjDmkKeFyONidb0Y/wDp0vsVfQKhko78qkhAEBD98B9cinTp0atRhN53BNv44xInADy3hsUoqyG/A6/elq8S72q10RZlupo60H/C2rxLkuhZmHW0HaD/AIa0+Jel0LMxX7mLUf8AD2jxL0uLFrsUtXe9o8TU9iXFh2KWrve0eJqexLixXsVtUEfB7Rj/AJNTaDs5EuLHjsRtXcLR4ip7EuLF07l7XdDeBtF0GQOAfnjycpS4sw7craiADQtHFED8hUyku2bXFLixTsTtPcLR4ip7EuLF0bmrXN7gbRMBv6B+QAbGWwBLizFTczanYmjaP9u8eYJcWZU7mbUXF/A2iSb08BUzmdiXFhT3MWlpDhRtEj/IqexLizPLdy1pExRtGIj9BU9iXFinYnaO4WjxFT2JcWPTdy9pAjgLRn3CpycnIlxYdi9p7hX8RV9iXFiLaDsTRWtT3XA+hfu8KCGNffcLzxE8W7ltK2sLFNylpotL7d/yNHpCpKKhBXtJ623tyXeX7LbHOfdtNuslag+RUY5+OWDmfkxdcDyhZoybdqk4uL3V/LQ06kIpXoUpxktnbz1Zqa9NtaxuaHXnWKo4NdmX2d7iA7lggHkCwStOk0v2P6M26d6WITasqi8JL7+ZtrBYWh1ksDxgZtFob9Z5pucykeZrQCNcrLGCvCi+999tEYJ1W41cVH/5i+Suk383sWrLuotJJfeAbOFK63gw2P0d2Mow2rD7VUve+nLh3G3/AKdQSy21+LjfmTXcLZm09Nta3Btx7gPq3qM3eieqFTEQUZtIyYOpKpRUpb+duJ2xa5tBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAfJGndLvs+krW5l35TaWua4S17TWfLXDWDgstOo6bujDXoRrRyy7+1Pmi03TVAB3A2OjTe4EFznOqgBwg3GP4rcysvXRSeWCT8TXWFqNrPVbS4beLWp50FbzZ6gqABwLXMc0nB7XDFp6QD0KlKo6csxmxNBV4ZW7a3T5NHutpCoaxtF4ioX3wRqM4AcgECNgUOpJzz8b3LRoQjSVK2lrevM3Ni07TcTV+C0uFmS4F9wuzv8FMTOOay9fG+bIr/PyNf2SaWTrHl5aXtyzbko3q67n6VY95lzm1STtNwrXnJyd2bcIKCUY7I70qFwgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgPltzmjSGkiagZ+XrQ29Spmp+cukCpVIDbvbQCHGOKREiQb+lUs8OB0hSacGtN2g+QOGBq3aTbpvNDHFhLXNvRJdAcBot0ukRTqPp0arKjH02hzgWVBk8XA9uDovk3s5Iyu4yCKVqqEGZoV0td9r1BSgzoe9H850vsVfQKhhHflUkIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAID5U3R2FptlqMnG1Vzq7s9WRBg/AxtKkHl1hB1nyICy/RLT9J3k9iWBKdxu5RlWm88I4Q4/UGTATmtrD4eNSLbb3ObjcbOhNRik9L6nQtwu5UWa3Uql8mWVLvGpvaRBaTLJ1gjoVq2HhGm5Rb05q38FcNjatSrGE4qzTaad9u5s6stA6oQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQHDNMb2+kalor1G0mFr61V7fyjBLXVHObhOGBCtcixifFhpPuTPGs9qXFh8WGk+5M8az2pcWHxYaT7kzxrPalxYk25LcZb7Ox4fTYC4uHbtODqZYTgc8St7DVqcINTfFPwscrH4WtVqKVNfta353X8ks0Joi0MtDKlRjWtay4IcDADIAznEyTykq1evSlScYvVu5jwmErwrqc0kkrb9nr5ksXNO0EAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxATEhUSExQVFRUXFRUVFhgYFRUXFRYVFRcXFxYVFxcYHSogGB0lGxUWITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFxAQGisdHR4rLS0tLS0rKy0tLSsrLTArLS0tLSstKystLSstLSstKy0rKy0tLS0tLSsrKy0tKzc3K//AABEIAKwBJQMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwEDBAUGAgj/xABOEAABAwIBBgoDDAcHBAMAAAABAAIDBBESBQYHEyExMkFRYXFygZGhsSJiwRQ1QkNSgpKisrO0wiMzdJPD0fAIRFNjc4PhFSSj8aTS0//EABkBAQEBAQEBAAAAAAAAAAAAAAABAgQDBf/EACQRAQACAgEEAgIDAAAAAAAAAAABEQIDEgQhQVEiMRMyFGFx/9oADAMBAAIRAxEAPwCcUREBERAREQEREBERAREQEREBERAREQEWirs88mQuLJKyna5ps5utYXNI3gtBuCtNU6V8is2e6cR9SKZw7wy3ig7ZFGlVpsyW3gMqZOrG1o+u8LVVOneAfq6OV3XkYz7IcgmBFBVTp2qTwKOJvWle/wAmtWoqtNmVTuFNH0ROJ73SFB9GIvl+XSjluU2bVEerHFD7GE+Kxpcs5fn+Nyg7q69o+oAFaS4h9UErDqsrU0f6yaJnWkY3zK+XZM3csTcOOpf/AKsv/wCj17g0cZRdvijZ1pGfkxLUa8p8SzOzCPMPoipz+yQzhV1P82Rrz3NutRVaXcis3VDn9SGU+OGyh2HRbWHhS07RzGRx7sA81nRaJ3fCqgOiEnxMgWo05+mZ3YR5d9V6c8mN4EdTJ0MY0fWeFqavT5EP1VE89eVrfstK08Oiim+FPMegRt82lZ8GjHJrd4mf1pbfYAVjp82Z6jBhVWnmsP6ulgb1nvf5YVqKnTVlh2407OrET9txXZQ5h5LbupmnrPld9p1lnw5s0DeDS0/bEwnvIutx02Xtmepx9InqdKOWX3vWObzMZE3uIbfxWtqc6MqSDE+rqy3dfWyhu3i2EDiKnqCkjZwGMb1Wtb5BcHpmqLQU8V+FK9/7tmH+Kpno443a4b+WUREOm0NZcqZKJxmmldhlcxhPpksa1p3u9ZzhfmHIqLZaFMngZOZiHCGP6b5HD6pYi8HQkhERQEREBERARWJqyNpwucAfR2bfhOwjxIHarbMpQG1pWG5DRZwPpHcOY8yDLREQEREBERAREQFzWknKrqbJlVMxxa/V4GEbw+VwjaRzgvv2LpVF/wDaBr8FBFFf9ZUNv1I2PefrBiCMc39H8tRAybXNja/FZpjLnWDi2/CA22v2rdxaLWfDqXnqxNb5ucu2yFR6mmgi42RRtPSGjF43WaV34aMKi4cGe/O5qXDw6M6IcKSd3zowPBl1mx6P8mjfE53TLL7HBdVZLL1jVhHh5Ttz9y0UeaeT27qWI9ZuM977rNp8k00f6uCFnViY3yC2GFemxrXHGPDE5ZT5WmNtu2DmXpoHGrhCpZW2aeLBVC9YV6AS1UDVWyrZLKNCKoavQaoPFlXCvdlUBRaeQFEWmWpvUxR/IgLj0yPd7IwpgAUKZ7jX5XdFvBlp4OwiMO8XuXh1E/F0dPHyT5o8otTQxM+S1jfoMYw+LSi22Q2Wgj5xi+mS72qq4nazkREBERAVud5a0kC9gTYm27nsritVXAd1T5IPE9KHEOs245WBx2G7bE7rG/etXkqeKV3oNZ6NjcMZzEtuNxBsDzhY2e2WpaaJ7mAG0M8l72I1UMkthsO06u3Fa5O21lw2ZOe0tVlPUavVtMrjskxAMbSFoiAwj0cUePpKCXkREBERAREQEREBQtpsdr8o5Poxt2AuHNUTNZc9AicppUG5VeajOZx3inFh0RweyWZaxi5iEymomUgGmHKnudvKrZJVF9Cp9vnXHp6fG1Wi0L2mFaZlbJ5lRXcKrgRKWbKtleDFUMSylnCvQYruFVwKWvFaDFXCroYvQYnJris4VXCr2BehGpyXgsYFUMWQ2NexCszm1GtjtYoMyGdfljHvBqKiUdDdY9nkwKdMpyCKGWY7BHFJJ9Bpd7FDGhejL6653NiAPS+SMfZa9c+7K6dGnGrfSMEeFrW8gA7hZFcRc73EREBERAVqq4DuqfJXVaquA7qnyQcjpPH/AGsp/wAirH/wqv8A4UVaKPfodZ/4eVSxpPH/AGcn+hWfg6ge1RPoo9+h1n/h5UH0QiIgIiICIiAiIgKBtGZ90V9fV78TnFp5qiZ8lu6NqmHPGv1FDVTDeyCVzetgOH61lG2hfJ+Ghe//ABJ3W6sbWMH1g9emv9oljZ+suy1SCJZuqVdWurm5vxsLVKuqWYIk1SnM/Gw9WqiNZerVRGnM/GxNWq6tZerTApzXgxdWq6tZWBVDFOS8GMI1XVrJDVXCpya4MXVqoYsnAmBORxWAxew1XcCrhUmVjFymkyq1WS6p3G6MRj/de2M+DiuP0AUd5JpfXY36DHuPjK1bbTnU4KBkY+MqGA9VjXv8w1ZWgOjw0es+W6V3e4Rj7heOc93rj9JUREWGhERAREQFaquA7qnyWHJlNwJGplIBcNjTtwuaAW7LG4cTv3N7gri8ObqpWfo3G722F+Nu/ftHjyIOd0pmX3HLgiLx7nqsRFrMBge0ucSdgDS47AbkAcd1FWij36HXf+HlU15+e9ld+x1P3L1Cmij36HXf+HlQfRCIiAiIgIiICIiDgtNlbq8lvZexllijHY7WOH0YyreZToKPJNK6aRkTDEJS57g0XnJltt3n9JuG1aH+0BVF3uOmaCS50klhvLgGxsAHKdY5RplmOrDmmqbMCAGM1rXtAaAAGsxCwFgNgXpri5YzyqEt1GkmnJIpoZJgPhOOqYei4Lu9oXmn0hi9pKbCOVsuI9xYL94UbZtTC+ErdZQp9lwvfjDx5SlfJOXKapH6J4xcbDsePm8fSLhbLCvn5lS5jrgkEHtBXc5vZ/SMs2f9K3l+MHb8Lt286k4+moz9pIwphVnJeVIKgXieHcrdzh0t39u5Z2BedvSmPgVcCv4EwJa8VjAq4FewJgSzis4FXCr2BMCWUs4Uwq/gTCpZSxhVcKvYFXCllIT/ALQVT6dHFfc2aQjrGNrT9V/eVIuiaj1eToBa14oiel7dafGUqHdONRrcqmJu0xwww29Z+KQD/wAwX0Fm7ThkDWjcLgdDThb4NC85abNERQEREBERAVqq4DuqfJXVaquA7qnyQafPz3srv2Op+5eoU0Ue/Q67/wAPKprz897K79jqfuXqFNFHv0Ou/wDDyoPohERAREQEREBERBCef0nujOGmh+DEIdnrR46l3e3Cu3mkBGE+m0izgbOaQdlnB2w9BUd5GqTNlysqQdjXTAE+q5sDfqMcu8dlKTkaewf0Fzbp+Tr0Y/G3P5SzLpnOL4f0Dxt9HbGeZ0RN2/NIHMVYmyLO1uFwD/WZcjuO0dy6YZV5WDbyf+lcbXQneC3Zt2q4dTnj/Zn0uGXiv8RHlalLHFawVBCmevyVTTizw13PudbisRb2rjcr6PDtMEvzXj87faO1dmHVYT99nFn0meP13crR5YewghxBG0EGxHau4yHpJmZYSWlHrbHfSHtuuGnzYrmGzoXDnuwjvDrJHkCr+QB0vZ7Cuj45Q5/ljPpOmSc8qOb4WrdyP3fSGzvsugY4OF2kEcoII7wvn2myTUN3uYPnH+S3dBNPCbtnLT6tx7QsTr9Nxt9posq2UbQZ61LW2L2vPKWC/wBW3isGrzwmffFK63GB6PlZZjXLU7sUn1VZFHw3hvNfb3b1p6vOmJvABdznYFGkuWyTs796xX5UJtttzW/qy3GuPLzndM/TvavOqXicB0Abe+61b866m98dgOjyXISV1/6srRqVuMYec5Ze3dQZ6zt3+l0gexbCm0hRbpI7c7XX8D/NRkZecheHTjj3DapOGKxsyjy1tXVCty/rG8F1awi/+HAWg/ViK+mMmswxMHqNv0kXPivmPRTTa7KTHH4LJpO141Q8Zl9SALkdiqIigIiICIiArVVwHdU+Suq1VcB3VPkg0+fnvZXfsdT9y9Qpoo9+h13/AIeVTXn572V37HU/cvUJ6KPfodd/4eVB9EoiICIiAiIgLHyjVCKKSU7o2PeehjS4+SyFyWlat1WSqo/LYIf3zmxnwcUEV6MKUujnndtJexhPrBpe49plC7jBzjyWp0bBkdDEDfE90kjgLbQXlrb3HyWtXSkM3hnbhbx8ez+ty49k3lLv1RWMNU5t+Q9ICxTNh2Obb+uULbyMB4rdBCwK11mk2xN47DaL83GsvVj+6LbiRbnvxc6uNym9u51xbZcX8lehyA51i6QAW3Nbbfy3JWRFm1ABaxP9c69Y05S853YwwRl1otjA6QQF7gytA7gPG3icA7m41sWZCph8U09IB81fZSxt2NaG9DQPJeuOiY808M98T4tj0gadro4enAAe61ldfQUrt8Mf0QPJenBeSSuvGKhw5d5tZmzeo3b48PVe9vtstVV5mxm+rle3mcb+IW6xlVD1ruxMOEr83aiO5JNuIjaFq5KWUbLn/wBqUg9YdTkyF/wbHlGzw3LXJnijB0bxxq29rv6AXe1GbN+C4dxWKM1ZDvLe/wD4TkcXE+l/QVjKcjhE8+o7xFhx86kSPM4HhSdwv5rQaRchQU1C54Li90kcbb2tcuxHZb5LHKZZdmox7sbQFRh1VNJ8lsTOxznSH7gL6HUM/wBnuk/RSSW4Uz9vKI442jxlf4qZlyugREQEREBERAVqq4DuqfJXV4lZiBFyL7Nlr+KDXZ00muoqqK+HWU8zLncMcbm3PRdRNmBm46DK2s10UoE8kZEZJNhR49Z1bzNbflBCmHKNSGjCQfTa8A2BaLNJ9K5A27rca5LN3IGTaGZ01PA5kjwGn0JCcLg1+BmN5DRdzSQOTkabB3KKjTcXVUBERAREQFF+n6uw0cEI+MnxHnbEx1/rPYpQUJ6aZddlOipd+FjSR/rygO+rDdBdyJlOOOnijBtgjjZfCbktaA6+zjKzYMrOO4SO6IyAVsSBfcF6BXn/AB/cur89fUMeIzv4mtHONvcP5rOhpQDiO09Jw9115a5XGvW8dOOLM7cpZYcvWJY7XL0JF6PNkh6qbLGxprEF5zArZjCtmZU1qrMxD3qgmqXkSKoercpxg1Srq0D1XElynGFAxeg1A5VDktniBRvpuqrQ00XypXyfu2Bv8VSUHKG9NtXeqhj+RBi7ZHu9jG96mU9lpKOhGjLMnxEixLC795LK4fU1akVc5mBRamjjjO9rI2E8pjiYw/Wa5dGvNRERAREQEREBERAREQEREBERAREQFAuV5vdGccziRhhJA3booQwj949ynlzgBc7htXx/lKrE8ssx262WSWx/zHuf+ZWBPAF+dVwlfP7QBu2dGxZDa2YbpZB0SPHkVbatPC9hyglmWKobqioH+9L/APZZLM564bqmbteXfaulnJOAcq6xQk3O/KI/vL+1kR82LIjz6yiN8wPTFF+VoSzkmTWLyXqIxpBrx/gnpjPscFdZpGreOOnPzJB/EVstK2NUxqMW6Sp+OCM9DnN8wVcbpNdx0reycj+GlwiStaq61R5HpMj+FTvHRI13m0K63SVTccM46BEfzq3CO/1q9CVcJFpGozvbO3pYw/ZeVkNz/wAnn4xw6YpPYFbgdqJlUTLj2Z85OPx9umKYfkWSzO+gP95i7TbzsnZLdSJlCueo91ZZMROx0tPTjmBEbSO9zlJUectEf71T9s0Y83KMs1XCfLLZN4M9RODv4DZJGHva3wWcqV9OZFb+hYflXf8ATcXe1ZytU0WFjW/JaG9wsrqwCIiAi47L7ssh1osLmEmxhjiBA4sevlvfqhc5WSZXAu81NvVbOT2iFhQSovL5AN5A6TZQrV1NWNshltyyPkZ4S4T4LWh7HbRheePC9jz2hpKtCcZsr0rOFPE3pkYPMrElzpoW76iM9U4vs3UQaiwvgeBzsIAHTZeGmM7MQvzpQliTPfJ4+NJ6I5Pa1Yk2kGjG5kzuhjfzOCjZsQPG3xXoQW4x4e1Wh3btJEPFBJ84tH2cSxpNJDvgwAc5e4+GAea48RDlPh/JehC3kSh08ukGoPBELeljz4l4Cx5c96xw2PYD6uqPePSt5rRCJvIF61beQdwVobJ2dFcRtnPY1oPgGLFflarO+efskePO4WNqGcg7k1DeK47Sg8SzOdwnF3LifiPbhJ5eRaWpo278IseVtx3OAW8MfrP+kfasaWMX4XfZBz5oI9+rY7paQO8Kycmw3/VtPQf5HYt6+AHbs7gvHufs7wP+UGiOSIONhA5nOb9oeKtDI0JtscOWxv5XW/FLa9iPo+0ry6l47dt/IW9qDnv+iRcrx9HyNla/6Ezie7fxt/ls8V0uo6eywHbuXg03N22ufFKHMnIO22tHaD32G1eH5AePhtPPZwHe4C66kQnnt0keS8ajjttHILdt7JQ5R+Q5eJ0Z6HX8ty8SZEnG8N+kF1uovz9Nz4X2r0yiPJbs2eAUoca7ItTa+rdbl2W5N6suydP/AIbu6/ku5/6ceQW5zfuuVc9yOHw7dpHkfalCPHU0g3sd9Eq2Y3ch7ipIpaMk+gSbfJaXLJbkgm92P+c3Dt5sexKEVkopZORdnpMYByuMf5bkKyzItO44b05O04WnG+3KQQLDaO8KUIrXe6FaPHXudbY2INvyGSWNv2Q9bqPM2mcbBge439FkHpG2+2FxJ7l1GijM6SmmmmMckUbntLWygh9o2uDRt27S9zid2xo33soSqiIoCIiAiIgKzPSxv2PYx3WaD5q8iDUPzXyeTf3LT35REwO7wLqxNmhRO+A9vVnnYO5rwFvkQcpNmDSHc6VvbG898rHLBk0bxW2TPJ9djP4WBdyiWI5OjeUbp4iP9OVp7zK4eCw35gVzT6JjcP2hwPdqPapSRWxEk2aWUm7RE53VMB+3K3yWM/I9e3fBJ2xOd91jUyIliESZW8KJ468U8Y/8jGrFdlJl8P6O/IJoie4Oup4VuWFjtjmh3SAfNLEHCW/xUnSGuI7CArctTEOFdvWsD4qY6jNjJ7zd9JTuPKYY799rrGlzNoHC2qLB/lyzRfdvCWIlDoztDgfamrbyt8VJs+j+icLB0w6ZdZ98Hrm8t5kQQbWyyu5nMpbcXE2EK2OUIHGQrWvjBtiF+zyWXmvTtlmdG9rCAdh1ceLeBvLdm9SVR5oQlt9bOOYOYB4MSxGFnngxvd0RuI7w3YvbaaY/FfScwHuc66ldmZ1Hxh7umRw+yQsmPNmib8SD1i532iUsRKKOX/Kb0uP5WkKvuXllaDzNxeJcPJTFHkalbugiH+2y/fZZccTW8FoHQAFLENMyUXbte7nYy35XLLhzbkO6nnPW1jfLCpdRLEXR5p1J3UoA9Z0bvB7iVmQZoVnE2GP52E/UapFRLHCszMqXcOZg6Mb/ADssiPMY/CqL9EdvNxXZIljjpNHFE8h0t5HAWBcyF1hvsC6MkbedX3ZhUdgGGSLlwGMYuYgsI7rLqkUGBkzI9PBfVMDSbAm5LiBxXJvbmWeiICIiAiIg/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8QDxAPDxIPDw0NDxAODw0PDw8PDg4PFRUWFhURFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQFy0gHx0uLS0tKystKy0tMC0tLi4tLSstLSstLi0tLystLystKy0rKy0rLS0rLS0tLS0rKysrLf/AABEIAJUBUwMBEQACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBAYFBwj/xABNEAABAgQCAwcQCAUEAgMBAAABAAIDBBESBSEGMVEHE0FSYZHSFhciJCU1U3Fyc3SBk6Ky0xQjMkKSobGzVFXB0eFDZYLCYvAzRaMV/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAECAwQFBv/EADcRAAICAQIEAggEBgIDAAAAAAABAhEDBBIFITFBUfATFCNhcZHR4SIkNIEVMjOhscFCUgaC8f/aAAwDAQACEQMRAD8A9xQAgOLppi7pLDpubYAYkvBc5gOYvOTSeSpCA8dwTRWan4ECbm8RxExZxj45MKIBBhCotYauyJBqABTIjKgrooWjlnqHGTVdC7D3OiQaz2LNtGp0WH2XIKPKbCvrL8B43N8290MU7IVrvraN5Hdl+lVVxLesPwDrb5OP0/Fex4N9ZV3i7L9VVllmfgETc3oafT8VdytiMp4s3VVXJkrKP62nZW//ANHFNX298bb4tdfyVHkfgWWQk614/mWJe1/yqPO/AupB1rh/MsS9p/lUepfgWQvWuH8yxL2iq9W/AtQda0fzLEvaBVesfgTsEduWihpiWI14PrK586r69LwLejPGy7FNuIc8wu/0kfFGe1+At+J014hXZ2wnpI+I2vwHyzcUe9jLp8XvayvbBpU0qo9JHxQ2vwPXTuXgf/ZYj7T/ACuL11+Br6ITrYj+ZYl7VW9cfgR6MQ7mY/mWJe1Vlqn4EbBDua/7liXtVdah+BXaNO5v/uWJe1V1lbKtDTuc/wC44j7VXUmyrZBNaAljbhPYrFNQLIcVl+fD2TgKDxq6I3iu0AILh9PxMhrQQRGbR1a9iOyrUU4aawrqJX0g12gRq4fT8UNtv+qKPrxanOnCrLGV9KNOgh/jsU4f9VnS4VZYSvp34FLF8Gm8NgPnZWfn98lrHmHHiB0KK0uDSwgOz18Ipl60lhpWTDNcqPX9HsRdMS8CPVw3+DDi23E0vaHU/NYm52LztPOgC87TzoAvO086ALztPOgC87TzoBHGooa0PKUBxDFe1723vIa4gVcdSAk+kv4zvxFTQD6Q/jO/EUAfSH8Z34igD6Q/jO/EUAfSH8Z34igFEy/jO5ygOhAxN1oqATt2qAdZQSCAyO6z3jxDzA+NqAw2hw7nSfo7P0Xtaf8ApxPA1f8AWl57HZDVrZz0LvZ2KNyJ2PwF3o7E3rxGx+BPKyD4ho1uXC45NHrXJqtfh00byS5+C6v9v9vkbYdJkzOor9+xocPw6HBz+1E4XkauRo4F8hr+LZdVy6R8Pr4/4PoNJoIYOfWXj9C06IvJcz0VEjdEVHIsokbnqrZdRK8WKqORrGJXc9Vs1SGGIo3Ftom+KNxO0TfFFjaNvUWTQt6smKEL1ZSFDS5axkTRHEAK7sGdxZlOFnJnpMa6L6bRa5+J42s0al2ONGg0OpfRYsu5HzebBsZCWhbWc1BQKbFChqixRT0okicMm4lOxZDaffaF52u1MYr0d82elodM2/Sdkek6Cd7pH0OX/bavMPTNKgBACAEAIAQHCmD9dE8sqQKgBACAEAqAEBLDOSA06qSCAyO6z3jxDzA+NqAy+gshdhskeAy0M/kr5OJRwxUe6OV6B5Mjk+5qIeHNGteTl43J/wAp14+HQXUe+BDbrp4uErinxbM+51w0MH0RF2PFHrXLPimofJSo3WgxLqrJmTNMhq2LgeRt23bZv6FJUkPEym4j0Qb6osbBC9RuJoY56q2WSKz3qtmqRE5yF0hhchahpcqlqG3KpNBcgoW5SKC5SmKEuWiYoQuW8JENEUXNejp8rizHJjtHJnIK+q0Ops+f12lOW9tF7sJWj5zJDaxlFczL2GSRivAGrhK5NZqo6fG5M69JppZp0i7ugQWswecYNQhDnD2lfFLVSz6qMn4n1jwRxYGkaHQXvdI+hy/7bV7h5hpKoAqgCqAKoAqgFqgODMH66J5ZQC1UgKoAqgFqgCqAKoCaGckBqFUkEBkd1nvHiHmB8bUBzNz/AL0yHosP9F8rr5P1iS89D0cS/AjvPfQE7ASuKzWMbdHNc8k1OsqDsUa5IS5UZNCXKBQ4PUWRQoiJZG0cIiqRtBz0CRA5yGqRE5ygukMLlBZIYXKCaEuUE0KHKBQoKkgKqUKEqromhC5bxIoY4rpxsq0VJgVXs6TLTOPUYtyOTMsX1ukybonyGvw7WRwIRc4NGsrryTUIuUuiODHjc5KKNhISogsA+8dZXwPE+IPUZHXRH2mh0awwrucLdEf3KnPNf9mri0cvzEPidOpXspGh0FPc6R9Dl/22r6o8I0tUAlUAtUAVQBVAFUBwJk/XRPKKkBVAFUAVQC1QBcgC5ATQzkgNYqkggMjus948Q8wPjagOLufv7lSPozF8lr3+Zn8f9HqYV+BHfc6optyXHZslRQiC00/9IQ6ou0Mc5VZZIbcqk0F6higvUDaLeoIoXfFA2kLnqTRRGF6FkhhchahpchNCXKtE0KHKaIoe0qGirQpKggYXLSJIwvW8RQxz10RIohiOXdhlTKSjaKEw2q+p4fl7HzXFMPI62BSVo3xwzP2RybV53HuJc/QQfxI4RoaXpZL4HTiPXyTmfRRiZbdEf3Lm/Nt+Nq6OHyvVQ89jPVr2MjU6DnudI+hy/wC21fYHzpo6oAqgCqAKoAqgCqAz00766J5ZUgW5AFyALkAXIAuQBcgJ4bslANgoJBAZHdZ7x4h5gfG1AZ7QJ/cqR9HZ/VfIcQ/Uz89kezp17NHevXGbbRHEHI6vzHiS6JVroVY8Mtz1t2/3UG0JJlcvQ1oS9KJoL1FChb1FEbQL1FE0ROelF0hhehahpehNDTEUE7Ru+KCdoCIpQ2k8F6hmckOLlKRFEbnLSKFETnreKJojc9bxQohdEXVAholkpffHiv2RmfEu9av1fG5d+x5mqwLI0md1zqCg1DIBfN5MrnJyfVnRCCiqRXe9ZNm6RmN0E9zJvyG/G1dvDf1MPPYw1q9hI1mhB7nyXocv+21fZHzRo6oAqgCqAKoAqgCqAzs276+J5ZUgS5AFyAW5AFyALkAXICeEcggNqqkggMjus948Q8wPjagMvoK/uXJejsXyHEP1M/PZHu6Veyidy9cZ0bRd8VWNoCJTxKpG0gjwQc25K6ZpGT6MpPqNaubrmM3xC1CiKoFAYiiiKI3RFFFkiMxFFF0hu+KKLUIYiUTQx8aisollEhMwVdQJ2lqTjVqspKmZZIlkvRGdET4i2ihRA6IuiKLbSJ0RbxRO0iuqVtEq0aSSg72wD7xzd49i83VZ/SSpdEcT5uxYj1yl4orvcpNkjN6fu7mTXkN+Nq7uHfqYeexz65fl5Gu0JPc+S9El/wBtq+xPlzRVQBVAFUAVQBVAFUBm5x318XyypAXIBLkAtyALkAXIAuQE8J2QQG6VSQQGR3We8eIeYHxtQGP0If3Nk/R2L5DiP6mfnsj6LSR9jE7l64jo2iXqCdot6UNoNi0/qFHQhxsbGYCKjUVoiYuuTKEWHs5lazdFcvI1qaLAYqUTQwxFFE0MMRNpKGGIp2lkIYibSyRBFiqyiXSId8V9pNFuSi5rLJAzyIumIqKJlRDEiLaMSUiu+KuiKLURGIt0hR0sEl7n74fss1crlhqsuyNLqznzypV4nce5eYjnSK73KTVIrvepNUjN6eO7mzXkN+Nq7uHL8zDz2ObXr8vLz3NloUe0JL0SX/bavsD5Q0NUAVQBVAFUAVQC1QGZnT9fF8soBtykBcgC5ALcgC5AFyAsQnZBAb5VJBAZHdZ7x4h5gfG1AY/QuWJwySc05mXZkf7r5HiH6mfnsj6LR5UsUU0dF7i00cCDyrjo9BJSVobvqUNg4REojaLelEUOZFp4jrCdCJQsdGhgio1FWKwnTplOIzgOaG/JlSLBIzGY2cP+VZE/ErF6vRYYYibSwwxFO0shjoilRLorviLRRLEZiK20knlI1HKk4cis1yOiYiyUTCiCJEWsYk0V3xFvFFqGwyXEAZkkADaStOSXMPka+VhCHDawcAzO13CV5GWe+TZ58m5Owe9Uouold70o1USu96skaJGe04d3OmfIb8bV3cPX5iHnscvEF+Wn57m10LPaEl6JL/ttX1x8iaCqAKoAqgCqAKoAqgMzOu+vi+WUAy5SAuQBcgFuQBcgC5AWITsggPQ1UkEBkt1nvHiHmB8bUBmNBD3LkvR2L4/iP6mfnsj3NN/SidqIwOFCARsK5E6OmMmnaObMyJGbMxxTr9W1aJpnXDOnykUg/n/NTR0UPERRRRxHh6iiKJYMamR+ydfJypRnOF9OpJHhbEKQmU3hWOhOytHhh2vXtGv/ACrJ0WSOfGhlvKNoWqpl0V3PV6LIic9WSLohc9XSJGXK1Fh0N+aq0QdERclntMK5kcSIrxiWorPetUiTsaNy9XGKdUPsW8ryMz6gfzC5tXkqO1dznzy5bTvPevPowSIHvU0apFd71KRokQOerpGiRwdNj3PmfIb8bV26BfmI+exycR/TT89zcaGntCT9El/22r6s+OO/VAFUAVQBVAFUAVQGXnnfXxfLKkDLkAXIAuQBcgC5AFyAsQnZBAekqpIIDJbrPePEPMD42oDJ6DP7mSXo7P6r5DiP6mfnsj3dKvZRO5euM6KELlJNFaalmv15O4HDX69qupUbY8jh06HKjQ3MNHeojUVp1OyMlNWga9Q0Gh4cq0UaLcrG+4f+J/ooZz5Yf8kEeGiJhMpRGq6OiLK71ZGqKExLg5tyOzg/wtoy8S1HOi1GRyIW6JIS5WokKqSbFBUNCyzDiZKu0rJcxj4iukQRglxAGZcQANpOQCtySJ6GzlIQhQ2wx90Zna7WTzryMknOTkcT/E7B8RVSLqJXiRVajRRIHPVqL0LCY55o3M/kBtKmq6iUlFWylpxLtZhc3wuMNtXf825DYunQyvUw89jyuIZHPDLwNNoee0ZP0SX/AG2r6w+YO9cgC5AFyALkAXIAuQGUn3dsRfLKkDL0AXoAvQBegFvQBegLEJ2Q9aA9PVSQQGS3We8eIeYHxtQGK0KidzZPzDF8rr4/mJ+eyPf0q9lE7e+LhcTqFD1AoW9BQ2I0OFCKg8ClOiYtp2jlzMuWZjNh1HZyFappnZjyKfLuRtcjRZokDlWjNovQot7f/Ia+XlVaOWUdj9xXjMVkbQkU4rVdHTFlV6ujVMrR4YcKH1HhC0jJxLVZzI8EtOeY4DwLojJMjoRVV6ICqUSPY5RRAj3KyQOpo7L3RDEP2YWrlef7CvOFz6mdR2ruZ5Xyo0D4i4EjJIrRIqtRokQOerUaUSS0AvOWTRrdwD+5R0upSc1BHUhtawUbq/MnaVjKTZyNuTtmf0+f3MmvIb8bV2cP/UQ89jl1q9hLz3NFoie0ZP0WX/bavrT5k7tykBcgC5AFyALkAXIDJ4g7tiL5ZQEd6ALkAXoAvQBegC9AWYLuxHrQHqyqSCAyW6z3jxDzA+NqA870OmR9AlW1zEBi8/WcNnJ+kS6no6TiGNezb5o7wiLw8mFxdNHrwkpK0KIiwcDQkbEWbiKJA9RRVodkRQ5g5EHUQi5EXRy5yWLDUZsOrkOwraLs68WTfyfUgD0o0aJYMe0g/ltCq0ZzhuVF59CKjUcwqnNFtOmVIrVZHRGRSitWiN4sqxAtEbJkLth1HgVly6F6sozEvTNubeEcI/wuiE7M3GivVaUVC5QBrnKxJrZCDvUJrPva3+Wdf9vUvMyy3ys53+J2LEiKqRdIrPiKUjVImlJcvzOTBw8J5ApbozyZNvJdTpggAAZAagFg7Zy9ebGuelEpGe06d3NmvIb8bV26BfmIeexza5fl5ee5pNFHdpSnosv+21fVnyx3LlIC5AFyALkAXIAuQGSxF/bEXyygIr0AXoAvQBegC9AF6AswX9iPX+qA9eVSQQGS3We8eIeYHxtQHkejkSkpL+ZZ+i93ArxR+B4WptZpNHagTpHKFy6rhuLOulM69LxPNgfW0dCDMh2rXsXyut4Xkwc6teJ9XouJ4tRyTp+BMHryJQPVRIyIsnENFiHEWbRm0SOAcCDmDkQoTopbTtHEm4Rhupwa2naF0R5qz0Mc1NWRB6mizRdko/3Dw5jx7FnJHNmh/wAkTRAoKRZTitV0dEWVIjVombxZVeFdGqZGVJcqTED7zfW3+oW8J3yZlKNFQlaUVLuDS98UE/ZhdmeU/dHPn6iss09sPiVm6XxNC964UiiRWiPVqNUiSUlrs3ZM/N3IEbopkybeS6nSupkMgMgBqCyfM5qGF6ii1DC9TRNHA03d3PmfIb8bV26Fe3j57HLr1+Xn57ml0Wd2nKeiy/7bV9QfKHavQBegC9AFyAL0AXoDI4k/tiL5ZUgivQBegC9AF6AL0AXoCzBf2I9f6oD2ZVJBAZLdY7x4h5gfG1AeN4A/tWX80z9F7un/AKUfgeLqV7WR0BFW1nPtJGRqcKhpNUyVcXaL8viA1OP/AC/uvneIcGUrng6/9fp9D6Th3HHGseo6f9vr9S8Io2r5aeNp00fVxkmrTJocYLnlANFmHGCycTNoZOwxEZT7wzb49nr/ALK2N0ycU9kvccK9dNHoMkZF5VVxKOjqMjBzQeHh8ayao4mtrohikIkaxkVYlFdG8ZFWJRaI1Uiu9XRqpEdymi1oqTUIfabq4Rs5Qt4SvkzKSo7GEQwyECftROzPi+6ObP1rmzO5V4GDdsniRQsqLoWWhXGp+yPeOxOhE8lcl1LxiDm4Nio0YjHRQlFkiMxQp2kjDFTaScLTN/aEz5DfjauvRL28fPY5Nf8App+e5qNGXdqSvosv+21fTHyR2bkAlyALkAXIAuQC3IDH4m/tiL5ZUgh3xAG+IBN8QC74gDfEAb4gLUB/Yj1/qhJ7cqgEBkt1jvHiHmP+7UB4ngr+1YHmmfovbwf0o/A8jOvaM3Gi+HykaIyDGAudBa8Z9m95tJoaHUCTTkVtS5Y8KyRXcy06c9Q4S/lr+/xL8jg0o5rA6FV7w03BzGjsojmZA7A2vLXJcufNmhkqMVtVc2deHT45Q3TlV3XXqvHlXPklzfO7pJN1YcpLB8GGYFxjNBLgeyzrVzRSlraZ12H1dck9spJ9PPP3vtRyL+ZJx6/N/D3Lu2XZeTlBAuLmCLWgg0Guoy18tdS+Z10ozzST22nXTn87OvS8Ry4UlHKktyW3917+/XpRCZVlt++SwO+W/Rd7O+2321uu2dlqW2Then9Xctk92xy3X+G9u7pXS+XU9VcZyesLHvhW9R2/8v5tvj179C7DlYdXWwy9rWMJIABY77xI4W1oKheVn4fjx6SGVXukm3zXurl4db8OTOmeu1EdZ6JxuO5Lkuavp38O/wDaiVrIJixoG8PaYUMPbF+67sQankNclzZtBPHjWTb+Fq7vvV9K6djr9bh6aGJO3K7VdOdHOmJeUoC0wnxXVLoYabmnhBOpVljjHGpKVuuh5mh41qMushhlODUm1tSdqrrnfaufIsTGANh31DCYTQ9/1dGuBcGi01/8gc/yXVn0ax43O+h72HiMM2T0ai1fv8DmYXFY+I2HYwB2ugOxck8KSMoaiU5JSNfP6PyzYTXtYWuc6G03Frh2RodS6tVoscIKUG+bS5+/kc+n1mSU3GVck3yvscvSbBoUrKxZhrWOdCY9waQaEtY52f4VjLQTxU5zTTaXJV1/dmmHXynuVdE38jCYRiYiRosN78PmGw4ESNfKCIQCxzBnd9035eJdWo0ePGouN82l55GnDdXm1Gb0c65+HxR2ozIArVsOrIZdEq1gscHWurRxyBrroctStj0mOWbHj5/iaT6Hr5N0Mbn8uvSrXVL+3zLWHYdLRZmHBLWODmte4MoXBpbe3VXWKcG3Wu7XcNw4djhf4m07937Hnw1uSWOcvD614ljFMLlYUJkUwHQQYjocVj+zoA1hLmm0Bw7M0IqCKajUDDBoIZdRjxK/xX/ZX4GGt4hlwafLkjJS2qLTrxlXNX1S7OufiqbhayWdELIbS5rbAbmhrrnVoP051TivDVpFjaXOe7vfSu9LxPFhxzUPT58ipuGyuTX8zrmr+FFyNhkBrw2xjqtBOqlTlSvjBXi6iMsb2x5vkelwriGbUxn6Vr8NdL73fd+BBOshMAtEMC5rLn9iwDhOdMsj/wC5Ls4PpYavUvHkbaSb/D3arp15c/8A4W4rq8+m03pMdbm0vxdEvF81/kpx5iGyHFeGQotjg2GWkWEOtLXOodh1VGa9LV8Kw4dTHGrpw3NPrd14dDh0fFNTk00sk9tqdJrpVX4vmPkHQ40JkQw2NcQQ4NqWFwrm2udNX5rytXgjiyqMejSPZ0WonmxOUuqbLJw9ouq1ptANd6ta6uw3Fe3reC4cOGeSEnyV06f+kfP8O/8AIM+fNDFkjH8Tq1a/2y7jODy8OWMVjSHFoc014S0u/ovL1GmxwxKce9f35nuaXV5cmd45dr/s6PO9LX1kJjyG/E1c2jXt4+ex3a/9NPz3Rq9HHdqyvo0D9tq+jPkTrXqQF6AL0AXoAvQBegMdib+2I3llAQb4gDfEAb4gDfEAXoBb0Bbl39iPX+qA92VSQQGT3VxXBMQG2APjagPm2WxeahsbDAly1jQ0E31oNua6oaucYqKS5HPPTQk7dnQgaYYgwNDfo3Yi0G11wbSlK1rRW9eyVXLz+5X1SHXmTt07xMCgMsG7AIgHNco9cn1pfIeqQ8X8wGnWJgU7WpstfTmuT1ybd0vkPVY1Vv5iDTjEa1tk67d7d0lSeoc3bir+BMdLCLtdf2+hK3dAxMfdkz44b+kuLNiWRU20vBN0d+LM8b3bU34tK/mPG6JinFk6bLIlPjXI+G4n1b5e86f4hku6Xy+5J1ysVpSkpTZbFpzXp/DcVU5Srwsr69O72q/gQO0/xE52SQO0Q4lfiUrhuFd38/sRDWyjLcoRvxrmKd0LFCKH6MWjU0iKQPVcrvQ42qbl8/saLiWRO1GPy+4xmnmIg1DJIHbvb6/Eqvh2J9W/n9h/Esn/AFXy+5O7dIxUihEoRsLYp/7qHw7E+spP9/sVWvyLmor5DX7omKOyIlCNhbFP/dS+H4n1lJ/v9guIZI9Ix+X3K8PTaebWyFIMrkbYLm1HLRyl6DE+rl8/sWjxHJHpGK/b7gNN8QFQGSQByIENwBH4lK0OLrb+f2NHxbO+tP5/USHptiDfsMk2HXVsNzTXbk5XlpYy/mlJ14uyq4plXJRj8vuPi6eYm/7f0Z/B2QiOy9bk9Uhadyte/wCw/ieSmtkafu+41mm+INyDJMA8G9uA+JRk0kMn88pP4u/8op/EJbXHZGn2r7krdP8AEQKBklTyImfvLJ8Mwe/5r6EQ184KoRivgq/2K7T/ABEihhyJB4N7fTmuUw4fig7i5J+51/omXEcklUop/s/qNGnuIgUDJIDYIbwPiV3oscpbnKTfi5c/8ELXzS2qMa+H3AafYlxZP8D+kqvh+F8238/sXXEsqVKK+T+onV5iPFk/wP6Su9JBqnKT/wDb7GcddKLtQiv2+4R9PcTe2x30YtpS2kWgGwdlkqvQ4mqblS9/2LriWRPcoxt+77nLxHH5uPCfBe2XDIgAJbvgcKEHKruRTj0WLHJSjdr3/YnNxPLlg4SSp/H6nqWAO7WlvRoH7bV2HmnVvQBegC9AF6AL0AXoDHYo/tiN5ZUgr3oAvQBegC9AF6AL0Bcl39iPX+qA9SxPSWYhQocRrYRMStQWvoKGnA5RRJzW6azXEgfgidJKBXxrGXz0rGlI4Y2FMNseYYc14FQciSQDlsQGNZudYedcSa9rD6CUCdu5thvhJv20LoJQJG7mWGeFm/bQvlpRBINy/C/CzftoXy0A4bl2FeGm/bwfloBetbhXhpv28H5aAXrWYV4ab9vB+WgF61eFeGm/bwfloB3Wqwnw037eD8tAMjblOGW9hHmg6o+1HhEUqKj/AOPZVCS03cmwX+JnfbQflIBetJgv8TOe2g/KQC9aTBf4mc9tB+UgEO5Jgv8AEzntoPykAj9yXBhqmZw8m/Qc/wD8kBVg7lOF2tvjTV9BcWx4Nt3DT6vUgHdarCvDTft4Py0IDrVYV4ab9vB+WgGncrwrw037eD8tAB3LMK8NN+3g/LQDTuXYV4ab9vB+WgGu3L8L8LN+2hfLSgRu3MsM8LN+2hfLSgRP3NsOH+pN+2hdBKBBE3O8PGqJNe1h9BKJO3Bl2QmMYy4thsbDbU1NrQGivLkhAOjnZ+qkHSlZYPlnxjUOa4AAfZUApXIBbkAlyALkBj8Td2xF8sqQQXIAuQBcgCqALkAVQF+VY4sBAJGeYBprKA9jntGGRHFwiOawku3si5rSczbmKKLJOVjmj8OWlo0wDfvEMvsILbqcFa5IDDyOkUOI276OG8m/OP8ARCDp6JTkOfm3y29byGQzEvERzyaEClMtqA2nUfC455j0kskb1GweOeZ3SSwHUZB455ndJLAnUXB47uZ3SSwL1FwOM73uklgOouBxne90ksB1GQOMfe6SWA6jIHGPvdJLAdRkDjH3uklgXqMgcY+90ksCdRkDjH3uklgOoyBxj73SSwHUZA4x97pJYDqMgcZ3vdJLAdRkDjO97pJYDqMgcZ3vdJLAdRkDjO97pJYDqLgcZ3vdJLAdRcHjO5ndJLAnUXB47uZ3SSwHUZB47uZ3SSwL1GweOeZ3SSwL1HwuOeY9JAYfSTEYcnOulN630BrXb5vjmfaFaW57dqEHPn9I4cMA/Rwa7Yzh/RAegYfovDiwYUW60xYbIltpNLgDSt3KlklpmiTKFrosSw52sAaK8ta1SwJ1GS/hI/PD6KgB1GS/hI/PD6KAOoyX8JG54fRQCP0LgEUEWO0nhBhVHO2iA5fWukq1MabJJqSXwSSdv2FNgXrXyXhZr8cHoJYDrXyXhZr8cHoJYDrXyXhZr8cHoJYDrXyXhZr8cHoJYDrXyXhZr8cHoJYAbl8l4WaPJfC6CWDWYfhUCBCZBhQ2thwxRoIuOupJJzJJJPrUA//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhIWFRUVFRUXFhgVFhYVFhUVFRUWFhcVFxUYHSgiGBolGxYXITEhJSkrLi4uFx8zODMtNygtLi0BCgoKDg0OGhAQGi0lHR8vNy0tLTcrLSs3LS0tKzUtNSstLSsrLS8vLS0tKzIvKzEvLS8tKzc3Ny0uMC03LS0vLf/AABEIAL4BCQMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAwIEBQYHAQj/xABEEAACAQIEAwUEBwUHAwUBAAABAgADEQQSITEFQVEGImFxkRMygfAHQmKSocLRUnKiscEjJDNDgqPxFFNkFSXD0vII/8QAGQEBAAIDAAAAAAAAAAAAAAAAAAMEAQIF/8QAJREBAAIBAwQCAgMAAAAAAAAAAAECBAMRITEyM0EjcRJhIlFS/9oADAMBAAIRAxEAPwDuMREBERAREQEREDh3bvjmOpcTxPscVVQIaYRQ3cCmjTf3D3TqxOoknDfpYx1LTEUadZeoBpv6i6/hIPpNp24nWP7S0W/2wv5ZrIl3Txq3pE78qt9ea2mHXOE/SzgKthV9pQP21zL99L/iBNy4dxWhXGahWp1B9h1b1sdJ85NhkO6j+R9RLf8A9PytmpuyMNQQbEfEWM0tiXjpy2rk1nq+oYnz1w7tnxXDaLiDVUfVq2qfibN+M2nhf0zWsMXhCOrUW/8AjfX+KV7UtXrCaLRPSXXImrcJ+kLhuIsFxKo37NW9M+raH4GbPTqBgCpBB2INwfiJq2VREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQOJ/S2tuJeeGot/uV1/LNUQTePpgo/32k3NsNb7lVj+eaQonVxfHDn6/fKsCVWnqie2llAjIkVRBzFx4y4IlJE1mGYlYVOH025W8v0OkrwJxOHN8NiHpm9+67KPIgaH4jlJ7StRIbY+nb0lrrXj2znDvpR4nQsKyJXUbllyt9+np6ibdwj6ZcFUsK9OpQPM29qg+K6/wznarI62Dpv7yA+NrH1Gsr2w/wDMpa5X9w79wntFhMT/AIGIp1D0Vhm+KHUekyk+Xq3AUOqMyn1H9D+MyfDuOcXwv+DiXdR9VmFQW6Zamw8pXtj6lfSeuvSfb6OicW4b9M9emQuMwgPVqZam33Hvf1E3ThH0p8Mr2BrGix5VlKfxi6/jIUrdYkOFxdOouam6up5owYeok0BERAREQEREBERAREQEREBERAREQEREDlX0yravhD1pYgfdagfzGaCs6R9NFPTCN0asv3lQ/knNxOphz8ahkx/NIJXaUIZIBLasogrJSnOUmYljdA1O8kRbS4CyK46zGzO4BPQJ6BKgIFdKnzkpWeUpNlhrMoHpgixAI6HUekxuJ4FQb6uXxQ2/Db8Jl8s8KzW1K26w2rea9Ja5T4LXotnw2IZG8Gam33k/SZvB/SDxnC/4je2Qf91Q4t++hB9TJrSx40bYeqfsH8dJV1MWm0zHCzp5F94ieXe+zXFDisLQxBXIatNXK3uFJGoB5i8yUwnYinl4fgx/41H8aan+szc5y+REQEREBERAREQEREBERAREQEREDnn0zp/d8M3/AJNvWhVP5Zy1Z1z6YKV8FTP7OJpn1Son5pyVROlhdk/ajk90JFEmpyFZIpl1UlPI2WVZ5GWvEsMvwkIlJ8TURXystOkj6o1VgWJcc1VRe3MsBJKnabFHRqgdeaPTptTI6ZMtgPK0m7O4pUpqzNlFLElnNi2UV8O9NWIAJIDU7bH3pkBwzDV6btTqI1ZVT2rJdKavlF3RGCKKZN8zsdNgt2Eq2tWLT+UJ61nb+MsJXw9OqhrUVyFLGrSBJCgkAVaZOpp3IBU3KkjUg6WSpM4MGMLWdw2anTxLUGB3emVbODbTVAw8yJjsbhfZ1alMm/s3dL9crFb/ABteS0n0jvE9VvaTpKAJUom6NUyyMCXAlDrDCFlmK7SG2Gq+Sj1dR/WZmYftUP7uw6sg/jU/0ker47fSXS74+30BwCnlwuHX9mjSHpTUS/mOoDKijayqPQASv/qmHjOM66+iWa8QX6wI/EfhLmnWVvdYHyMCuIiAiIgIiICIiAiIgIiICIiBpv0tj/212/Zq4Y+uIpr+acfnavpOp5uGYnwVG+5VR/yzh2FxAbYidDCtG0wp5VZ4ldLPHfkJSz9IAl6ZU9lKPyMnBltVEkoPfSa7szDJcKxARiHBNOopSoBa+UkEMt9MysFYeK25mTYvANSIvZkfVKi+5UXqDyPVTqDvMaptrL/A8Vq0wRTbuN7ysqujeaOCpPja8xMTE7wfqWXwOMr4lhh3IqK1szVBc01UEGr7TQjKrNqSemu0tOKYkVa1WoNnqOw/dLEj8LSmrxqq6Gn3KaN7y0aaUlb97IBm8jpLemZildp322YvbjZWJWBKRPC/SSSjSB7aT20jRCZUGmBS7WmH4/3lpr+1Xor6tMtUExeKOathF64uiPxMi1/HZNoR8kO9s0idoZpC7TjusoqGWtQ85NUaW1QwK04pVTZrjo2v47/jLuj2lH+YhHipv+Btb8Zh6hlnVgbtheK0ami1Fv0PdPodZezmFaV4bi9al7lRgOhN1+6dIHTImsdnO0j1qgpOq3KsQwOUnLa/dO/vC5G1x1E2eAiIgIiICIiAiWfEeJ0qIvUYC+w3ZvJZpXHe17sLKfZIdBY/2j7aXG2+w9YGZ7d8Rw3/AEmIw9SrY1KTr3QXKEroSBtrY2M+aqdYG3I+hE6Nx+rUCFmAWnf3cw9o5JJA1Ftf2VN/E7TQcVhUZnCbAErmBBa265QDY72Jyg25XAgS0eIuvPMPH9ZkMPxamfeup8dR6ia2FcANrlJIBscpItcA+Fxt1HWeir1EnpkalPaK+hS3puGjC4II6g3HrIgLGazRrldVYjyNvWX+H4yw99Q3jsf0MtVy6z3cK9sa0dOWdFzv6SakZYYbidJ/rZT0bT8dj6zIKks1tFuYlWtWa8TCdRJ0MhpmSLN0cpSZWlPrPEkt4apFkVfTURniGFsdZbU6d8bgB1xSH7usu2WxkXDxfiWAHSpVb7tMfrIMnxys4/kh2NmkbtKS0oZpyXUUuZb1DJHaW1VoENVpZVnktepMXi8TaBTiK9pZNUJIAUuzWyou5B+sx+onO535dQpUnqPkQXa+txdaf7w+s/2Nh9bYgbr2d7OKl2NyzG7M2rMfEn5+JJIVdkOD+zY1nu1UrlvqERCb5EXkLjz9TfbLyijSAFgJLaB7ERARPCbamalx3tzSp3Shaq+vev8A2anXmPf25aeMDacTiEpqXdgqjcsbCadxnttuMPoOdRx5aqp233b0mlcZ41VqH2lepcXsLkBE16bKLc+dtTMZjK2XK3tLE+6Mua5sNFQd4mw3U7bwMu/ETVqZfad86lql8xAvqqnUjUa7DpIgrpmz0xUBGrqRmsN7qxtlA3s3kolgcVnH94okXsToKi+BbKLg8ybWH7R3kSJ7VlFEtVQH/MLPQJGvdJN6jdD3kWx2IgRiklVs1HJTAWwDEMcpvb+z/wAmmbAjLYtpe1pqmPVXc+0bQEi6LmUeAFxrmJ0Ggv1m08cr5yKdZEp6Xvf2ha182ViBkGoBdhre1hvMJi3ZWanh6jOHshyC1xocndOp6A3Oo5QMW4NQkpTy09GNyXygaFmq2zAa+e2h0kVfIzAaLlAVioLBrG2ZQcupAv3it+g1ldSmqhlKuKma2rZLWvmVhbe/2h5SpWemmdSitewIbLVTKPe01QEG1xa+t99Qtnwd3ZaZzgZrN3RnC2uVsTmNiCVFyBe+gNoLn/n9dpeYdlTVWcsSQqi6MLrZXuCbkE+4Af3hPVzLSKmmFVrWYpY5kZQ2RyLs3VQwHWBY5/hNm4LhKdREFDGinXtZqNcEU2bvW9m5GUXsBbvHXf6swdSnTKp7MsXJIZT4C+YC1rfN5HjcE1MhXtcqGGV0cWJI+qSOR0v0OxEzEzHMMTETxLOUO0RVitamQykqcuhBBsQUbUEHfX4TO4PH0qvuOCemzfdOs59l5fy/SU3lmmXevXlXvi0t04dPUysNOf4Pj9enpnzjo/e/i3/GZ/BdqqTaVFNM9feX1Go9JbplUt14Vb416/tsJlQMhoV0qLmRgw6qQR+E9zWk8Tur7JX2kHBdeK4P7KYhv9u38549WWnDcK9fHCmjlG/6VyGXQr/aLqLeRHxkGV45WMWPkh172k8Z5oRxHFMN7wXFIP8AQ/r/APoy6wXbzDsclYPh35iqpA88w2Hi1pynTbbUaWdapFPFK6hkYMp2KkEHyImL4pjVQEsbecCnGYnlzljw7CviG7hIXnUHPqKf/wB/TYkzcL4PUxRDVAVpfsHRn6Z+g+z632nROF8LWmBoBbYdIFpwPgSUlACgAcpsCJaeqsqgIiICa/2h7X4bC3Ut7Sr/ANtLEj987J8degMwf0jY7iCd3DqRQK956WtXNrdSB3lHu6qOtyNpy5DfW9731+9zgbJx7tTiMVcO2Snr/Zpov1veO7nTnp4CYxfn1b9ZbL8/j+suKZ+fiP1gXNP59R+shXhqA5qYFNja5VVsw7pswIsRcnodTK6R2+H5JcUzt8PywMfWo1Lg171KYtpSBCgDfOhJZuf7Q27txeKpWtULYdDRW9i5Yh9NMuUgXG+tQabgHeZNW0+ekseIUabG5BD7ZkOVwLtpmBHhpAx1SoaLMuVarEEnUmpqCAz3JBG9jcDkqzD1AO8zVAhAvlUaXvzDW++RrbQTJsGpghVDLqbbVL8ybm1RtBre/UzHYh1c+I5HRgRztvp1EDGINc5QuAdS2axve2bKVKjyOuWR4ejmPvIoAJGbMVGl8tlBKsfh5yasWsRmNiRcXsTbx9dSCdZCxTJlCXctoxYiy21W22p1ve52tAiasWAUmyi9rDTMSL8r/HvHQDyVbWW12sO9m1QEk2AsbgW5E3JG0uM9RELiooLXRgGyva310B9w66kcuWl7dcgubvf6tiFa5072huNtFPpe4CTFB0UU2X2YdVc3uc41NNjv1IAFvG9tPDUNPKQ+drArYlhT1bMpzAd73T3Tl1O/KNMO1nYqO6Rm7yoy3uNF+tfnYHlqL60MxJLLYWAAC90mwtzJve2upNz6BPTZHcvVBVGZr5W2Yre4LZie8bnS1juLiR4bBNUuFsTra5sGAJBIZrW2vZiD4SrHsM9jUNYKgVWsyZVGy5XGirc2FgNZRUIBy0wy6AksR7QtYAgEAd03uFF99SdLBbvTsSNiNweVuvT4yMrL6njGpqUyocwHdYE5CALNl9zNY+J3vruRKZQ6tnuAv2yTYKRaynmTmbygWdGqyHMjFT1UkH1EzGF7T1l0ezjr7reo0/CY6thSFDG1jpowuGtfKy8jbXUCQPTI3HrN63tXtlralbdYbfhOO0X3bIej6fxbTbPowph+LtzAwTeO9UfrORTqP/8APif33EHph7etRf0kl8i16/jKOmhWlvyh2nE8KRuU1/i3ZKnVFnpq48QDNxnhEgTON4v6PDSYvhK1XDtv3SShP2lJ7w8CbTLcB7KVmZXxdT2zrbLZQig2AJyjTNvr6AbTpT0FO4ilQC7CBa4LAhANJfAT2ICIiAiIgWWOwpYWBml8b7JJUJYrZv2l0b4nn5NceE6DKHpg7wOI43s/WpHbOo6aMNR9U76Dkbk/VEsKR9QQCOYPc0IOx8DO24rhatyms8X7Lo+pXUbEXBHO1xra/LY84HP6R2+H5ZKrgWv4fl2HPaX2N7P1aR7vfXobB+XPRW2+z8ZjFOpFjmG4IIYA7d08v525wKnqHy/n68vhLZzJHeW9RoFvXMxmLUHcX8+XkdxL+sZY1oGPqp438G357P6biW1RPh4Np6HYiX1QSBh/xy9IFkwIOo25G9hcdOUrfEFkWmbBVLEHKpNzvZguax6EkedtJDTGnQctSv3Z4+YKV0CsQWJGYabEG2ZelufWBA4AAG5uLWN1y2uQOYN9DYiD7h7gALKMxF7EA91W3Ua3IAN7DWXCYUCk9XNYqQNChzg2096515WIsPAyKlh2qG+W+n1SoJtoBlvqbD3VsYEYTKtyRludrNdgPA90WO97/jYSarXdnZjqSc1UhAO8xucxsNRfSw3A1npA0WmMx0YtYhgQDcAA2C/Ak235SF6lxY21IJIFrkX1ttzO1oFVQ63Ud1Rlubte5JB37pI5LbbzJqxIOiN3NNUGyut0s6gd17Lre7bX8KADe9M6ja2j+nXyuJJ7MLZ2yOCVuEcKw5lGTRl6E25aN1CUIjABahUC3dqkvSzWtcVE9066ZlW1xrzlD452XKQDa2pAJ0FrXtqP3r20sRIspaxY7AKNLWUbCw+TqTczL8B4BUxL5UGlr9NORJsbC4tex2sATpAxvDeG1K7hEUnW21/gBzPhO/fRZ2PTBUjWIb29ZQHu4YKqkkKMul9idTrtpIuyHZJKCgAAtbVrW8wBrYfEk8yeW94ahlFoFwJ7PBPYCIiAiIgIiICIiAiIgJSyA7yqIGPxPDlaa5xbs0jjvKDa9uoJ5gjVT4ixm5ylkBgcg4j2aqJ7pzjo2jDa+Vx5WAI82mCxmBemRmUi+17WO18rDRt+U7hiMArTA8U7Pq4IKgg2NiARcbGx5jl0gcZrnrpLOpN94t2PIv7I/wCl7svTRtWHmc3wmn8Q4c9M2dSlzYZtVJ1Ngw0JsL2vfwEDFuJCVl2aJ56SoIBt87frAs1o23npHz8+cnI+fnykbCBaNQF77HqN/nWRVlc2uSQBluNwm9gpNtydBpL0iUEfPz5wLSmKYUlsrWFipBB1a3d+0FHvHLbNYXIBkYp53sMoDMbZ2N1G4u3vdBc3HWw1l3UpA7i/z/zI2Ru9Zr5gQSwubXudeeogWwCLmRkDk7WfVTbQq6Eoy663XXS1oSlzY3PjraXCUfMk8+Zm+9kexJYipXHiE2P+rmP5+XMMJ2W7I1MQwdxanfnz8Lc/6c/2T2Ts92eSkoCKFF7nqTtcnmbADyAAsAAMhwrhIUDSwA0FraDYWGw8Jm6dMCBRQoBRpJ4iAiIgIiICIiAiIgIiICIiAiIgIiICUssqiBZ4jBK3KYTiPAlYEFQQRYgi4I6Ecx4TZ54Vgci4v2JGppEoenvIf9JN1+BAHSaZxLhlWj/ioQB9Yap0976uuneAJn0PXwatMPjuDA8oHAmHz8+coI+fSdJ412Gptc0x7Nvsju/FNvTKfGaTxTgdehfOl1H1luQBr7w3XS1za3iYGII+fnylJEl8f5fPjKSPn58oEJHz8+cqoYdnYIilmY2AG5O/9D8Ly94ZwypiHyUxfqT7qg9T/TfSdW7KdkkojQXY+8xGp5/AX5DoNyLwMP2O7FinapUGappbmE8up8fTbMelcP4cFA0k+EwYUS8AgeKsqiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgJ4RPYgW1bCq3KYrG8HB5TPTwiByrj3YOm5LJek55qNCftLsfPfxms4XsNijUy1Cgp31dCSxHgpFlvruTboZ3arh1PKWy4BbwNe7P9nEpKFRQAP58zfmfE9JtNCgFGkkRANpXAWiIgIiICIiAiIgIiICIiAiIgIiIH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhIQEhIWEBUVFRcQEBUVFRUVFxUVFhUWFxUVGBYaHSggGBomHRUVITEhJikuLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGyslHyYtLysuNzctLSs1Ly0tLS0rLSwrNTUtLS0rKy0tLSstLTEtLS0tLy0xLS0rLS01LS0tLf/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAgMGBwEEBQj/xABREAABAgMEAwgJEQgCAgMAAAABAAIDBBEFEiExBkFRBxMVImFxkZQUUlN0gaHR0vAjMjM0NUJUZIKDkpOisbKztBYkYnJzwdPhRPFDwhek4v/EABoBAQADAQEBAAAAAAAAAAAAAAABAwQCBQb/xAAtEQEAAgEDAwIFBAIDAAAAAAAAAQIDBBEhEhMxMkEFImFxkRUjUbHR8BRCwf/aAAwDAQACEQMRAD8AvFCEIBCEIBeZrYda8/OTsSFGiFsOZiQQ3f7jWBriGNa2tALoGXPmV6ZVE6Eey2n39F/EV3SsWnaXGS01rvCLN0ctzt39ZHnJxujlt9u/rI85WiAlhX9mrP37Kvbo5bfbv6yPOTjdG7a7d/WR5ytBoTjQo7NXXesq9ujVtds/rI85ODRm2e2f1kecrQaE4Ao7VTvWVcNGbZ7Z/WB5yU3Ri2Nr+sjzlabQlgJ2oT3bKsOjFsbX9ZHnI/Zi2Nr+sDzlaoCKKO3VPcsqr9mLY2v6wPOWDoxbHbP6wPOVrXUkhO1U7tlUnRm2O2f1gecknRq2O2f1gecrWITbgp7VUd2yqXaN2z2z+sDzkg6OWz2z+sDzlazgmnBO1VHesqp2jltdu/rI85Nu0dtrt39ZHnK1Sm3BT2ao71lVnR22+3f1kecm3aO2527+sjzlapSCp7NUd+ypZmxbbhtdEdFiBrGmI4iZxAaCSRR1cgr93L7VizVlykeM4viFrmPccS7e4j4YcTrJDASVCtIfas1/Qi/luUn3FvcaT5ov6iKqclIrPC7FebRym6EIVa0IQhAIQhAIQhAIQhAKitCPZbU7+i/iKvVUXoN7Lanf0X8RVmL1Ks3pSsJxoSQE4AtbJBTQnWhJaE60Ll0U0JxoWGhONCh1syAlhqy0JYaud07EhqCEiammQxxs9QGZ/wBcq4M5aD4mAy2av/0Vfh09snPsz5tTTHx5l0Ju02t9bQ/xHLwbVx49suOLbzhtrcb05Jt0AnE4nl1czck1EhsrxjU8pK9XFp8VPbd5mTUXvPMk8MRRiHfbvfeKLck9IQcIgp/E3HpAr4uhcyZfDbiQKbaD71pRS12LcebA+Ci0W02LJHNU4896zwnQIIBBBBxBGIISHBRXR61d7eITjWG80Ye1cf7E/eDtUscF4uowThv0y9THki9d4MOCbcE84JshUu5MlIKccklS5cvSL2rNf0Iv5blJtxb3GkuaL+oiqNaRe1JrveN+W5SXcV9xpLmi/qIqz5/MNGn8Sm6EIVDQEIQgEIQgEIQgEIQgFRmgvstqd/RfxFXmqN0E9ltTv6L+IqzF6leX0pa0JxqS1ONC1MpbQnWhIaE8wKHUQW0JZcGipIA2lak7PshDHE6h/c7Ao3aFoPiNLmuDjjRoI4vyc1pwaS+XnxDLn1dcXEcy7k9pDChg3ReprOA9Ohc2X0gjRSacRo10pU+EVp4VpaK2ZCnYjmPiPbvbA+jC0OD7wGN5pqPTkUvlNDJaFWkSJQkmjokOgPJxVryRpNNvS0fMqrTUZq9UT/4j77ziS455k6/ToWrMWlDh4A1Kl8fROC/i77EFe1fDqfsrSfubSxziR/pw/MTHrNN/3mfwr/T80+UKi29sSBajX4Ox9PEpodzGU7pMfWQv8aBuYyo9/H+shf41p/UNFHjf8Ov07Igu+BsTenG814FOVrsOkEHoXIs+aIeWk1oS3oNFa0Tc5lnFhL49WYN48PKtceIuBpFoHKSUGJNNiRrzC15vvYW0dEaHVAYDkTrU0+J4LWise/Dv/hXrSd0SnHC9FaNRDhyHAn7yrBsma32BCiHNzRe/mGDvGCqpZOFzYsQ5vdgP5nVp0V6FZWhwPYUGuu+4cxiPI8RCp+JbTjrPu709ZiZh03BNOT7wmnLx2o04Jsp0pBC6cuVpH7Umu9435blJNxX3GkuaL+oiqOaS+1JvveN+U5SLcU9xZL579RFWfP5howeJThCEKheEIQgEIQgEIQgEIQgFR2gfstqd/RfxFXiqP0C9ltTv+L+IqzF6leX0peE40JDQnWhamY40Jqfmt6ZfDbxrQDn1lPMXPt20mQ2GHS+9wy7XlJ/srMFOvJEbbuM1umkzvsjc1GiG8Q41campz8S1pKG6IXb7gBgKZkkZ1zHgXUlwx4BwNVtNbCZiABy/9r3+7FY2iHz/AFfl1tCpVjY0VzW0JhgF2s0cMypY5xvUuvI7a/gPtV8SiWhk618eK0GtIdftBSYS7t9dEvOoWBt29xQQcw2mB8K8DWxPenq+j3tDv2YbNOU/Sd5UVO130neVaUWScY8ONvjw1rXNLA7iOJriW3cxtqickXPiwYoiPaId4ua11GvqKC82hr0hZZ48NvLdqdrvpO8qMdrvpO8q05uWe90NzXFtw3qB90P/AIXC6aj/AGlz8u54aGuLKODjQ0qOg86iOZ5TbiN45bIONKv57xpq/ir4tSiO6sTwXM4nOCMyf+RC2qRWpLGKwsDi2prUOLSPCAVHN1RzhZcyRgaweWnq8LHwKzFEddfuid9pUjfc4sgsFTUNA7aK40A8GA6VechJiDChQRlDY2Hz3QBXxKqNz+FLQ4vZUzFZCZC9ha48Z8Qj1wZmQ0GuWZbsKsFum1nONBH8JhxQPG1ehqpvkmIrEzsy12r5dlwTTgiWnIUVt6E9sQay0g059iy9YtpjiXRopspwpJRDk6Sj9zm+9435TlIdxT3Fk/nv1EVcDSb2nN97xvynLv7ifuLJ/PfqIqozeYX4fEpwhCFQvCEIQCEIQCEIQCEIQCo/QH2W1O/4v4irwVI7n/stqd/xfxFWYvUryelMWhONCQ1OtWlRDJBoaZ0NOfUoRMsLi6riHEm8SMa66qdtUZ0ks54iCKwVD8HcjgMzyEDxFeh8OyVi81n3YPiFL9EXr7ORJMEFt0OLsScaYV2DYtSfnHOwFSdgx8SemJuDDz9VdsBoweHWuJP6URG4MowbGgNHlXuY6bfNt+XkUra8/VMNyu/2TMXmub6kMwR78bVPGyJEczFeMWb2W3zcpUGobdzw27VXO4/a8WPMzIiOvAQQR9MKzRKDfTGwqW3MjWmfbUz5F878Sv1ai0/b+n0mkp04oiTb5MGYZHvmoYWXL3FIxN65TE451SpuTD4sKLUgw8uMQDXOraUKUZSsVsWo4oLQKHI56+XYmpqzWviw45DS+HXeiWuJbUUdiHAY1OpYon+Zaeaz8p2dgFzoZvUuOvtFaXjdcLpwNRQ1w2JyZh3rvI4O9c5oOeBpmMcjgm5mAXlpqKNIc0EOzGVaOFdvgTNo2eIwYHEcU3hQGt6hFQa4Z/7XMW55lE1iI4jkq15JsaHcdSlamt2mRHvmka9ijW6vxbJmeTeB/wDYhKUzcAvbdvXTnUDkIOFeVRbdYZWyZkf0czsmIWZU45nqj7pmI5l5/Y8nw5UzPMtmFMNbz9PjSGSr3CjBng59KVGwDUE5wHFpUfcvap1V9mK00niZdKzbXiQniJDcWOGsfcdRHIVZui+krZoXHgMigVIGTxrLdh2j0FNsa5jrrhQrt2XNOhPZFb65hDxy0zHMRUeFXXw1z0+qjq7dvouZwSCltcHAOGRAI5jiEkheI1uVpN7Tm+9435Tl3dxL3Fk/nv1MVcPSf2nN97xvynLubiXuLJ/PfqYqz5vML8PunKEIVK4IQhAIQhAIQhAIQhAKkdz/ANltTv8Ai/iKu5Ulufey2p3/ABfxFWYvU4yelMmp1qbanGrSoJmZpsNtTnqG3/Sgdu20+MSK0Zlz/wCuRSDSkuBbsLC0c9TXxEdChk1CK+g+F6ekVjJPMy8LX5rzk6J4iHLnIy5G8uiODRmVvTZoU5YJG/fJNOkL08k78Jx/JSbQm+5BZjoMxME64IH2wrIiTDL72X3hzQHOAIoBhlXHWOTxqMaBzsJ0eNDZUuZDAiGnFBvDig6yFLXb5fdQsDLuGd+9UZ6rufSF8n8Qn9+eP4/p6+hte+GJtxLMrFaAReJxzeRXwJ9MsccCXjlGH3p+qxtZiJGAc1prV1btATlnU6vCksmQTQA9GSVGD7zKFobU3wRidl3HBNtv63t5KCq5TDZafIorupPa2zJlzheAME0yr6vDp41KYZ5QSM6eTUo5ujyu+2dHh7TC8UeGf7K3Tx+7X7x/bjLMRSZnxsoDsyYietO9N1BgofC7PxpiakHkVJdXUSTXpUvbBl4A47mtI1Zu+iMVzJy35Vx3oNiOJwqGtAHLi6q+ky48da/NPLx8efJa3yU4RuUmXGjXkuAOs1I5icl2oJo0nPDDlOpchsm5r6Eg66jWD9ym2glhumIrYrh6jCcHV1PiDENG0A0J/wBrLiyTirM2aslYvMbLLlIRZDhsObWNaecNASynHJBXkNDk6Tj9zm+9o35Tl29xL3Fk/nv1MVcXSf2nN97RvynLtbiXuLJ/P/qYyz5vMLsXunKEIVK4IQhAIQhAIQhAIQhAKktz32W1O/4v4irtVObmUi6JEtUtIFJ+KMa7TsC7xz8zi/hKgnGrcFjxNrek+RLFkxNrek+RaOqFPTLmzcoyKww3jA9IOojlUCtmSfLuuRBVp9jiDIjYdh5NXMrSbZj9rek+RNzlhiMx0KIGuacxU4bCDTA8q2aTXTgnbzX/AHmGbUaSuaOfKj7Tlqg08C48lM73EY/tXY82RVmx9ziba5wZFguh14t50QOpygMIr4ehceZ3K54uJbFlqHa+L/iXt312C0bxaGTFpsld6zHDsbleE1N/y1PynMI+8+NWRvMMucaC84AP2kDKvIoDopovaMjEfFHYsYvhMhEGNGZixx41d5Pvaal32S86YpjOl5W+Wb3UTcweLUHLscAHAY8i8LWzGXNNq7bce70sFejHET7JAZaH2v3p0EUwwUffOzbC5ohStQA94MzHwacAfa51pAtSeo4mFJ8Sjog7KjVa1wqCR2NUYLN25+n5hZ1RMbu/EhscWuIBLTVh2E50SOx4fa/euCbUnuN6lJ8UBxPZUfAOxaT+7YYEJiatydhNiOiQpNoh3d8PZUybt8gNylca1GW1V9PO3u7345SmGGjIUUb3SgXWdMAEgkwssP8Azw0/v9pGn7vKbfbUfwf8ZcvSqQtSclokqIcpCv3OP2THdS69r/WiXFa3aZ61di/bvW9vETH9ubxNqzEKYtGE2Gw1IDgL12ovU5lybPhhtY0Q09Mhyqef/ENo8Y77K1dSvqkalBkPYduPQtyxdx+bMeG+aiwHwmmr2Q3RSXAYhgBhgBpNKmtaL0M2ura/V/Hj/Ms2PTzWvTv92lopoVEmw2amCYUBwDocNp9UiM1En3jT0murAqz5eXZDY2HDaGMaLrWtFAAutwU/IFo2Z+RJNkxNrek+RYMmabzvaVsU24iHMKQV03WRE7ZnS7yJmLZzm5vYPp7K9qq+qE9Mo7pP7Tm+9o35Tl2dxL3Fk/n/ANTGWlpTZ7uw50Xm1bLTBI4/vYT60JbQrd3EfcWT+f8A1MZU5ZiZWY4mE5QhCqWhCEIBCEIBCEIBCEIBeVtMoNq2bPTUJkaPLNjRokyzeoz4bIjXvJa8XSASAQDrBFF6inppsKG+K7JoLjy7AOUnAc6oLdN00mI8UwHQZd0JhDmNfCEQh1MTeccM6YUQQP8AaS2Ph031qL56c4dtqgPZ00Ki8KzcQVFSK+v2gpPCvxeV6u1MR51zzeutbkA1jbrQAKYN1INjh62fh011x/8AkSnW5bQAd2dN0JLQey4hxABIwf8AxDpWlv5WzAtAtF3e4UQVvDfIbYlCQAaVyyHQgDpBbHw6b61F89Y4dtj4bNdaieenOE/i8t1diULT+LyvV2Kdw1w7bHw2a61E89HDlsfDZrrUTz09wl8XlersWeEfi8t1dibyGeHbZ+GzfWonno4btj4bNdaieenuEfi8t1diOEfi8r9QxNxibt61C4mHNTbG9qZyI6h10N7JM8N2x8MmutRPPWxwj8XlersWOEfi8r1dijcMcOWx8NmutRPPRw5bHw2a61E89P8ACPxaV6uxY4S+LyvV2Kdwxw5a/wANmutRPPWRb9sD/mzfWonnp3hP4tK9XYscKfF5Xq7FAxCty2nENbOzZJrQdlxNQJPv9gKxw9bPw6a64/8AyJQtUjKBLtNCKtgta4VFKg6itPfyg2uHrZ+HTXXH/wCRYiaQ2y0lpnpsEEtI7Ki4EGhHr1qmOVtG1jrgSxOsmA0k8pOs8qBp9t2tEBhGbmom+eplnZEV9+/xbl28b1a0pTGq9N7mVixpKzJWVjgNiMa9z2g1umJFfEuk5VAeAaYVBXnqwNJo0tGZHgwJVr2+td2O2orgaGtQaVFRjiV6R0Ut7suFec0MeA1zgMqOFQRXLEOFORB3EIQgEIQgEIQgEIQgEIQSgjWm1qMZCMAi854Dzhg1rXAg85Iw5idi8/6UsJiFxxqrI0ltYzD3RK1DjSHyQmk3On13OSoBpCypQRFzVhzyTjs1CniW25hqaBpp2xb9xTMUGgZRus1BBOOFCRzIGn7MOcAjNORQAOLiOVtHCnLWmPJyJcAEtIDWnCpJpUDDInmyzxKxLGh9a1xOFHYjEjoQEOl2tRWmRbWtcMDXUMcfAsytK4kDEUq282gzqM9iIsMhxBFDkQCM/BgnZmG715a1odiA0ilKagMs0DLXVdjhmTQbQdVeUJcweN704gVa26D8lO0JZg1oDddQHGtacrteSxAaTVoAJOGJG2uBIwOCBEbIEEa8A0gjHCuonpWRS7qrhXi68sHA5Up4apQaWuxAJByrUYE1GWKzFhEUJAx2EHPmyzCBMs4Yglo1Vcy9hTOoxrlkNabhuodW3EVxxpryxWxEaXCoaGgDMYa/GViEwuwAG3FwGzWecIGI2DjQhwyyIGPIcR/pZjDJwI20u0pTKuroTkF133odhrx/skuYWOxGRyOIw8GIwKBlxJAyGGoU8dcfCgOqKUaMc7vJtGOzBORGkmuA5sNmqiw83scNfPnWpwxz8SBmG7NvFxzLhWnNs8CVCbShvN5nNcfFQhLbU8XA4UxIFNeBOWvpTYBGHLXPZlqxzPSgTUgihBy1GmG0HNKiYkVLTq4oLf7BZfCOeGOxwPLkMQnGgkVAbQa6tBw8aB+zoVXDnV0aCWlvT4RcTT2F/wDK+l0nmcBjqFVUllw+MFO7OeMAcnC6fCgvRC5WjNo7/LseTV49Ti/zswJ8ODuZwXVQCEIQCEIQCEIQCj2nNo71LFjTR8Y7w3kDgTEdyUYHY7SFIVVmm9qiNNvY01bAbvDaAu9UdR0U4fJbzsKCNTUSpNKUGA5guDara1OwE4BSASdRg7paR965drSrgw3aEk41qBSnIghkW5sfXHW4DXTC7zLXoNp+0t+ba/IgYZU/6xWsKjVqpnq6EDFOU0+UnH3MLpdkL1a4nXTk50uES0hwzBBGWBGWYoehPz03EjOvxDedQCtGtwAoBRrQB0IGGBlDW9ewp66g26lmEG1416nJe8H9kthIyHjr/wCqWyA52DWk68Ku+4cyBmgrhep8rlTj2twu3tVa3s646hy5rZEnF7k7od5qUJOL3J3Q7zUGuxsO7jfv6jxqAYcldviWIQbXjXqY5XtmGo61tiTi9yd9rzVnsOL3J32vNQaTgK4Xqaq38sf9LMVrPeXxzl3kGpbnYcXuTvteasGTi9yd9rzUGkQ3lB+WkADGtTs9flTo6VvmUi9yd0O81NiSij/xuPgcP/VBp69ZGut/l8PQkvaPek6u2z1rdjQIgFXQyAMKkEDk96mYRukOoDQ1oQHA8hBzCDXddplTl9Ur96RTlP2k/EGNeWtMkl5J1ZCgx1dCBN1tCaPwpU1cRqz4vPrWIIbXjXqchcObUdSehxXAUutdhQYDDVXJZhNdeqBj0ZeBB1LHYCARXA6wdfOpRBOC4tiQYhPGDQCDWla15qAKRQpHD13iQTPc+tS7GMEnCO283+rDGI5ywE/NhWIqNgR3QaRGE3mObFh1a9ovNNaEkZGlDyEq6rPnGRoUOMw1ZEY2Iw8jgCPDig2EIQgEIQgEIQg5ukdrNlJaNMux3thLR2zzgxnhcWjwqmLJDrt55vPcS97jm57iXOceUkk+FSndgta9El5Bp+NR+YVbCadoJvu+S1RmCaABBtly5tpHArcL1ozpwQROfBqVz3k6zVdafZiuY9qBoBKAWbqUGoBoSmZ+D7/+kAJcNufR4v8AaBQJ2pQJ2oDUoNQAJWanas3Vm6gTVYJO1LurF1A2SdqwSdqcupJagZinDoPQUghPPZgeZNUQNkJBCeLUgtQJaSMiRzLal3Ormek+mspgNW3KsxQSOyHHDE9JXehuwXCs3Ci7DHIHI2IIUv3JbVrDjSTjjBdvkL+lFJNOWj7/ADBzQoY56Zsa1uw56BMk0YTvMfZvUQgEnka66/5CC+EIQgEIQgEmLEDQXOIaGgucTkABUkpShG7DaboFmxGtB9Xc2WcQMGseCX12AtaWfLQVZGtMzc1HnHV9VeXQwdUMcWGKajdDa8tVvMeofLWxcFA2q2RpIe08aCVX1qzTlwf2lPaeNIfpDX3njQOzoXMiBORbTDtXjWu6YB/7QFFkBJ35vpRKEVvpRAoBOwW4eE/emRGb6US2zLQKeRBsALNEx2UPSiyJpvpRA/RZomOy2+lEdlt9KIH6IomOy2+lEdlt9KIHqJJCa7Lb6UWOym+lEDpC1gPFh0YJfZQ9KJBjN9KIMELFEGM30osGM1BkBbss1aAjtT0OeA1eNBJpIroteolDt2773xp79pT2njQSdz1zrVhh7CDjguQdJT2njTUS3ycLtPCgv3cztzsuQhFxvRIX7tG23oYFHHlcwsd8pSpUduI2u4TsWAASyNDvOpUhr4eLXHUAQ54rrN1XigEIQgEmJDDgWuAcCKEEVBBzBGtCEFIbpdnwIJdvUKHCxw3tjWfhCq4TMSvr3fSKEIHRNRO3d9IpYnIvdH/Sd5UIRJYno3dX/Td5VkWhH7rE+m7yrKECuEo/don03eVZ4TmO7RPrHeVCE2GeFJju8X6x/lSuFZju8X6x/lQhNkDhWZ7vF+sf5VnhaZ7vF+sf5UIUIHC0z3eL9Y/yo4Wme7xfrH+VZQiRwtM93i/WP8qxwtM93i/WP8qEIgcLTPd4v1j/ACrBtWZ7vF+sf5VlCJknhWZ7vF+sf5UG1Jju8X6x/lQhSQSbTmO7RPrHeVYNpR+7RPpu8qEJskk2hH7rE+m7ypJno3dX/Td5UIQIM5F7o/6TvKkmaidu76RWEIMGYf27ukqQaJMD4gDwHjY4XvvWUKEPROjkhBgwWiFCZCvC864xrLx2mgxK6iEKQIQhB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEBUSEBIVFRUXFRYVFRUXFhAVFRUWFhYYFhUXFRUYHSggGBolGxUXIT0iJSouMC4uFyAzODMtNygtLisBCgoKDg0OGhAQGi0lICUtLSstLS8tLS0rLS0tLS0tLS8tLS0vLS0tLS0tLS0tLS0tLS0rLS0tLS0tLS0tLS0tLf/AABEIAL0BCgMBEQACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAAAgMBBAUGCAf/xABOEAABAwIDAwcEDA0DAwUAAAABAAIRAyEEEjEFQVETIlJhcYGRBgcyoRcjQnKCkqKxstHS8BQVJTM1U2JzdKOzweGT4vEkNGMWQ5SktP/EABsBAQADAQEBAQAAAAAAAAAAAAABAgMEBQYH/8QAOBEBAAICAQMCAwMLAgcAAAAAAAECAxEhBBIxE0EFUWEicbEUFSMyUoGRksHR8KGiBjNCYnKC8f/aAAwDAQACEQMRAD8A+4oCAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIPl/kjsTBv2c3EYihyjjW5MnNUaYdWFNujgLZvUuTFSs03MPpviXVdRXq5xY7ajW/b9nbfq+R2CoOxdZ9N1SnRp8o2kXvAEUy9wBmTMbyYV/RpEzMuaPinU5a48dZiJmdTOo551H+R5cD5c7CoYXEUjh2ljalDEEtzOIBbSdcSZE5tOpY5qRSY18pen8K6rJ1GK0ZOZravOvnaHXPxQ7k6dQ1aQ5X83TLqnKOHKGlMBmX0gd+gWPZOt7en+VU77U7Z+z5nUa8b+e/H0bLvJmtygY2pRqHlhQcWPeRTqOJaBUBaC0EtdcAixU+lbet/RlHxDF291qzH2e6NxHMfTnlQ3YjjQFYVqJBdkDA6tyhqFuYUgMkZ464neo9Odb3C/wCWU9T05pbxveo1rxvz4/csxHk/UaHRUpPcwgVWMeXPpS4NlwiCA4gEtJgpOO0e6KddimY3WYifEzHE+/H9N+VlTyXrioKYfRf7ZUpOc17y2m+kwvqNfLQRDQTYFTOK29bUr8SwTSbTWY4idTEcxM6jXPz+5Rhaj8JVZiKVak806oDcj3HOMgc7UAhpa7ISd5I3KsTNJ3E+Gl4r1NJxXpMbj3jxzqP375j6PtewBTdTNelUe9tc8qMxnLmk5QN0TEdUbl6lbRaNw+CzYrYsk47eYnTlFLMQEGC4DUoI8q3pDxCByrekPEIHKt6Q8Qgcq3pDxCByzekPEIJNcDoQUGUBAQEBAQEBAQEBAQEBB888ksVTpbDNWsxz2MqueWtMEltYFsXGjoPcuXFMRi3L6H4hivl+JdlJ1MxEf7V+C27+GYHaVfJlbydRrWkgnK3Dzc8SSVauTvpaf88Mc3RfkvU4Me9zuJ/3OreVexqmGq0RUxNTEZ6GJINQvOSKJkNzONjPqWGSk11Ezvy9r4f1VOopeaY4pq1PHv8Aa+6FOFxNapg6bWYfEvZQMyxw5BxbVNWXMyEuImLG0KKzM1jUTwnJjx4+ptNr1ib/AD/Wjca87/GEmbZyV3Po4Wo3PVZjq2Z4e51NrjWbkhgDKfthM3NwnfqdxH1lE9J344rkyROonHXUajc8c87mePDj2txFPBtdyFRrG4kYltYtOSzA1siNJEzodFT7UV8e+3T+gv1E174mezsmvv53/kOQZUe6rWGGwVUV6kGvzi9tNr3NqubTblGXOQDzibaLTczM6rz7uWa0ilPVzR2R+rxqZmImOefb6fvXY7aGIr+31cNiAyjXr1A9jzSNJpHOYXZbPY4A5o0BBUza1vtTE8KYsGHF+ipkru1axqY3ufn90/Lf1h17bWPFesaoZlkNFy0ucWtDS95AAL3RJIAWF7907h6vSYJw4opM78/dG/aPpDgtqY5lKM5N5gC5tvXX0m7RMPm/+IsdK3peP1p4n7o9/wCjQ/HtLi/w/wArt9Oz5vug/HlL9vw/ynp2O6D8dU+L/D/KenY7oRftakbHMRwIn+6n0rI74Q/DqPRPxWp6VjvhE42jFmx8EJ6VjvhE4ulwPxRdPSsd8IOxVLon4rU9Kx3wwcVS6PyQnpWO+BuPpt9GROsCPmT0rJ74DtQdJ3r+tR6djuhF21B0n+v609OTuhWdpjpP8T9adkndDB2l+0/xP1qOyTuhA7R/bf4u+tOyU90IjaB6b/F/1p2ybejvMpVc7Y9PO4uipWAkkkAVXQJO5VS72gICAgICAg+O7Iq4qps38EpU6Rp1HPhxeRUkPzEZYjVhHcuCndOPth9j1MdPj63172nca41x4+e1nk8Mbgs9LkqNSnWEup1Ccp5oGoHug4Ngzpu1NscXpxrhn1l+k6vV+60TX3iP3/6eVPldi8TVr034plNg5DECk1hJGXkXFxk8czeGmirlm0zu31b/AAzHgpitXDMz9qm5n/yjTi61ahWpUM9d1F1GkafJ8m9+bnOdnpuaQAXZoOYjTeFTdbRG506a0y4sl9Y4tFp3vcR8uJ38vbTb/HlHI5mRgnZzcOKgZU5U1RRYzITMZcwImNwup741r6aY/kWXcW3P/N7tbjXbuZ39/wC9nGbVoGrXxTar3OrUX0xhjTeMpfT5PK985DTbqIvYWCmbV3Nt+Y8Ix9LmimPBNYiK2ie7cc6nfEedz7s7V2lh8SKtM1jSaa1Os15p1HNflw9OkWua3nAtcwkGIuUvettxv3/ojp+mz4Jrfs7p7Zrrcbj7UzuN8cxPKjEYrDuwYo8oxz2Prua6pRr8o7M5rmljmktYXZb5p13KJtXs7dta4c8dV6nbOpiscWjXEc79519HXiYuVjEb4enaYrG5dG2pjDWql27Ro/ZGnjr3r2sOP06xD86+IdXPVZ5ye3iPuaq2cCQUwJgKwsAVoVSDVIlkVtI2kykSQACSdABJPckV3OoN/NvM2M+JcQ35R+cD1r0cfwrNaN24Y26iseOUKuyHe5cD1ER4ZSUy/CclY3E7RXqaz5hx1egWmHCPm7ivNyYrUnVodFbRaNwocFksiQqpRIQYhRKYYKgG6jtSfCYenvMkPyPS/e1/6z1g0d8QEBAQEBAQdYpeQeBb6Lard1q+IFpnc7iSe9Y+hSPH4y9S3xjqrfrTE/8ArX+yz/0VhP8Az/8AyMV9tPQr9f4yp+dOo/7f5a/2RPkNgiZcyo4w4c6tiHWe0tdq7eCnoU/yZTHxbqojUTEePFax45j2Vex7s79S7/Vr/aUfk+P5NPz51v7cfy1/sex7s79S7/Vr/aT8nx/I/PnW/tx/LX+x7Huzv1Lv9Wv9pPybH8k/nzrf24/lr/ZxnlR5EYGjgcTWpUnB9OhVqMPKVjDmMc5pgug3G9PybH8kfnzrf2o/lr/Z8A2jtqsyq9rXCARHNadwP91rHS45jwpPxzrP2o/g08Rtms9pa5wg2MNaLdoV69NjrO4hjm+L9VlpOO1uJ+jRC6HmMgKYgWNCmELA1XiFZlY1qtEIWBqvpVu7P2a+seYLAwXHQfWepbYcF8s6rCt8kU8uwUcAykMrRLjq43LurrHULduq+g6TpaYY37/5/BwXzWvPPgrN6WvXH/A9a65v7QrDVFIHQj5P1wmpTvSnF4DM3KbmNIh1t4Gju4ri6rpoy15bYsvbLrFanBj7lfLZKTS01l6ETtUVRKJCqlEhEolQMs1Hak+Ew9P+ZP8AQ1H95X/r1FztHekBAQEBAQEBAQEBAQEHC+W36Mxv8JiP6T0Hk3bP/cVO0fRC2p4Ulpq6qQCITAVoQtaFaIRK1gV4VbmHwjnCbNG5ziGg9k69y6MeC9/EKWvEOSwOyKbjNSswNBuAW87qBzf2XZXoYj9a0OfJmtEfZh2I4qk1obTdTDRYAOZA38bn1dq9PHOOkRWsuPtvPNvKoYynoHt6zmbJ+/ct4tXzNoO23yW061I6VQ0+/bHeJVbZ6V94lnPf8paeLqseHNc5gqNu14c2CdQC7eD16SotkrERatv3NKVvuImOJauDxYrMyEw6Dl4gxYhXnJW8brPKZx9l/o6ttGqHOa8e7F/fDU99j3lfO/EIibRaPd62KJiNT7NVwXnLoJKUSqpRKAzUdqrPgeoPMqPyLh/f4j/9FRYNXeUBAQEBAQEBAQEBAQEHEeWDZ2djBxwtf+k5B5L21/3FTtb9Bq2p4UlpBXVWNUwiU2q0IXUmEkACSdBxWlY3OoV27NszYwZepDni8atZ9p3qHz+30fw7X28n8HFn6nUcIbaIL2g2EXN5InsO7qha/EK2isdvlHT6ny0jTZ0/p9/uF5Hbn+bq/Rq6lMTzXtjdIqT6mK0Uz/M/Ro5D02eFX7Kdmf5/gfo2DS/bZ4Vfsqk0yz7p3QFM/rGeFX7CtSmfxE/gd1U6VQ0znzA5QXSMw0BgXAOseK7MGS2OJm8qWpFuHDVDzaY63eFh/Yrh6u24q6IjmWXhcciCiUoqog4KEjdR2pPgepPM0I2Lhu2uf/sVFztXdUBAQEBAQEBAQEBAQEHGeVAnA4r+Hrf03IPI22Pz7/g/QatqeFJagV1U2qYhC2m2TAV4hEu67D2Q2i3PUvUMyIBA4N1+57F9F0PR+nXutHP4PL6jPa06p4bjeeYEN+DHqkgr1Z4c3FeZcLt2jkc25Mgm/buC8vr7TM1dWC0WjhqYthaGzTayW5pDnOzA6F0uOU2NrdY0XHj8y3id+Ea+Gcx2R7Yda0gm+4wTB6tV0xEa2b2zUwrmv5Mt58gZZBMmIFjE3WfqUnHN4nhNY7tRA7CvFTk8vPmMog34SLFc+K1b17q+JWvWaWmtuJhmmwhxZybS6SLkiCNbhwG5bxCImNbcdtBpyxvzAR1zouDJb2dFIaEy8Ro0QD2b+8klc2S/daF54hY8KkqwrKqsiVAgVCRouO1RPgepfM9+hcL2Vf69Rc7V3NAQEBAQEBAQEBAQEBBx/lEP+jxH7ir/AE3IPIe1fzz/AIP0GravhSWqFdVYFaFV1FhLgGgkk2A1nqWlKzaYiFZnXl9MwbC+k0vAD4h4aYGbqkb9e9fT4bZIrFbzy8TNlrW868eytrAHSGmdLmfUAF0865lG4yR4cD5UnnMnou4cRwsvP6qIm0adeCIiOGrtrZ76Bp8o6k4votqN5Mk80zGew533lY9PauTf0nTqtXTWxjId6VN1gZZOS+64EHuV4mPZFZ2txFIsrZXGmTIBIvTuB1bp4ahJiO3ha9ey2vwQqlwrEAsc4OIDhlDCZiZMDXeVlrUKTbu5ZoZjW5pZmJdBJAYdbgmAJi3aqWtGtbaaiK7mHG7TJDCf2iJERO+PH1ry72mXRWGlhmQ2SQJ07FSNFkyUlVW5VSgVEpYKhLDdQonwPVHmkEbFwnvXnxqvP91ztXb0BAQEBAQEBAQEBAQEGltps4asONKoPkFB5A2r+dcepv0Qt6+FJazVZSUwFdDt/kXg2OY98gvmCD7lsWt1mb9XUvZ+F1pETb/q/BwdZkmsxE+HYaNN1N7iXSHADKAYkGxzHvtG9ejTHbu28/LamSsR7wk5/d2f34rpiq1I14dX25WPKNINxNwbhZZ68xt14fDX2gxzQwZ3PzMDiC17Q151YA70iLXHFctJiYnjTeYX7RwpbXDQ97xDTyha+RMFxjU5S5ctbTaN6TrnUo7SoOZXLWPfUA9F+V0kQJjiBO7/AAprm78XdaNT8ml6RW0xE7j5o8g52Iy53RmgVXNIOSSA8gmw71zRl3Gp4JrMRuOTC4Vzq+UPc1pMGqWubYn0iOuNJWFtWnUzwtu0V3rn5OK22CGnMSTmFyHCRMAwb3XHedQ3q4UNlVr9VltISVvWsSpLYcwxKm+KYjceGcWiZ0qKwldEqEsN1HaonwPVXmn/AELg/wB0T4vcudq7agICAgICAgICAgICAg1dqD2ir+7f9EoPHu0/zh7G/RC2r4UlrNV1FoV4RLl/JvaPIVw5xhjhlfwAOh7jfsldnSZfTyb9pcnVYfVxzX39ne8bWa0S8xwaLuPcvpMe7cV/i8fDhmOZcFjdtEeiA0eJ8dPUt5xxSN2nbtrj3w4KvjnVTzt2kADXs7F5ubJ3Tw6649RwmMO0/wDvUx28vbwYprO6+PwTPChc9Z+3IxmK4upy7tptSGJXL3tNJMaCDLgI45r9kAqlraTDVxolneNVlFJtzK29NF2GcfRaQOvU9ZWtsNreOIV7495RawtPOCmlbVnkmYmOHK0Gghejjr3V05JnVnG1GwSOBI8DC8m0anTqQVFhguO1Rbwl6s81f6GwX7kfOVztHakBAQEBAQEBAQEBAQEFGOHtT/eO+YoPHGPPOHvGfRC2p4UlQFdRYFfaHcthbLbQpivUbmqn0GnSnaZI6WnZpxXu9B0Hdq9/vcOfqOe2qGMrEklxkm5K+jiIrHDmiNuMNJ1V7WN1JgLhzWm06bRaKVm0p7Q2W7DuDXe6E+H/ACuLLSldalbB1FcsTMNzFB0UhyFJn/T0r5qM1JzRUcTo8jUG4yidy87pskbtWtt8z/8AHZmrMa7q64/yWhiDoMrBv5ppO8Syy0xzMXnbHavDj2xnNDuc2GnR1xzT26d64er4vt0Y54chtOm8VqoNGlSIe7mB2HIYQRzQbSOyNbbguWq7jaovfL8HLHyTC1pj7lZlRXq5GzAPAGY9S6tRjjcRuWWptPMtdwrVBMmOAsPUrWxZrxu0/wBExbHTiGjULmmCT2G6869Zpb729Zi0cN7DV4aCdDbvXdiy9kcue9Nzw1Xukk8ST4mVw3nc7aoqizLNR2qLeEw9XebEfkfBfuGLnaOzoCAgICAgICAgICAgIKsUJpu9675kHjTEmS0/sM+iFtTwpKoK6q1h6p6uKtHlV9CZUFRoIMgiR2G6+2w5K2pFq+JeDlia2mJcVtSkQumZ3VthtEwh5OvDcSwnrHfBXBaNrdVG8MxC7ysxzatUBo9DM0niZE/MuPPhndZ2josM46c+7TxFSgRTg1SRRYHyRAqDNmDZnmRlt2ripivS25+bvmWpWDLZM3Xmg+BC0mJi25V0jRIzNzTlzDNGsSJjrhYdTi9SvHlrjv2zy2ca+gajyw1i0vJbmcJgm2aQZPfw1XDGK1Y58tbXiZ4a1TJ7gO7yDbsAXZhpMx3SytKeDpMc/wBsIDRcyYFl14a1nJEW8MM17xX7HluY3bVCmMrQXR0RA8TErr6nrcWKs6hzYujy3tuZdZxpFSajRlG8G/fK+fzbyx6sRqHqY47Ps7Re+WNYNxzE+oBZ5ckTEUhMRqZmUFilhEjdVFvCYesfNsPyRgv4an9ELnaOyoCAgICAgICAgICAgIIVhzT2H5kHjKqw823uG/MtaKSgGHgfBaKptYeBVolDmdibTNLmOnJMg65Tv+Cd47x1+n0HWTht22/Vn/Rx9R08ZI3Hn8XP1cXSeLvYNxGZsdx3r6SM1P2oeb6V6W3EODFTk6gLXA5SCCCDMXWFr1ieJdvbNo5NtVQXAtMiSbXu4NM28O5Y9ReJ1MNMUTpZXq0Kgp8lRLC2m0VCaoGd41cA4Wm31Lz6Rk3PdaPPHtw1vNfaHHPPOjTvsO/Ra25nthXSD3gGJ+c/crG9orOpWrGzNaZ+vwWV7xHKYrtmi8E3BI4XbPemPusWiIW0KEnnOAHElvzSu2lIjmzK1vk0No0w58U5I3uyuA9e5eT1lq5bxWs8OrFE1ruWK8kZGtIAiTESerqWOXNF49OviE1rrmVbWQIj1FYxGk+WCw8D4FJES08FCWQw8Cot4TD1l5uR+SMD/C0foBc7R2JAQEBAQEBAQEBAQEBBh+h7EHj5rbDsVotMIZyKe+UaMin1JO2DIrRmtCJpDOXqXRXr8tY9lJwVkgcFb85ZflB6FWFP5yy61qD0KtjD4+pTaWMcQ0vZULYBBewyxxkblnbrr3ncxCfRr5WUtsV2+jVeOdUfujNVblqOAixc20qs9XaZ3qCcUTGkfxrWylmc5TSFAjmwaTSSGaaS4lRk6mbzEzEccrVppIbZr5Xs5Q5aj2Pf6JLnUo5MyRNoGnBU9a3d3J7I1prYjFveIeSRmc/4TruPetq9bkr4iFPRqozdSrfrMl/KYx1hjN1LnnJZpqGC/qUxeUTWEeV6vnT1JO2Dler5075O2GxQx9QBwDw2zjBHpZpDgLG5Dj6+pO+TtU18e9zchjLO6w7h3qJtMmnqbze/onA/wtD+m1US7CgICAgICAgICAgICAg4byu2uMJg6lWedGWn791m23xr2AoPKOKw+V5GYgZjB51h3IhZX2c5gBc+AdCM5HiFItHOBg0hAknLVBsY369iJQZRkEhzIbrapvt33QZbhpaXhzMoIExU36QN6ntGBQGXPnZExpV1InThA1TtGaeGlpcHMgRNqlpMCyjQyzCy0vDqcAwbVN6aGG4aWZ89OPhz8XX1IH4NzM+ZmWYmKmsTprp8ykYZhgWlwcyBE2qbzAtvuiRuGlpcHMgRNnzfS2qDAw4y58zMsxMP4TproiA4bm5szImNH69Y3f4UA3DAtnNT+UDbqNzaUSwaDcuYFni4n4sSgCllbm9pI68xPgDKCoYHOSRUptvpJaB2B25BX+B87LmnrEwg9Nearagq7Pp0Z52Ha2l8AD2s+Aj4KhDuSAgICAgICAgICAgICD5H529scpXbh2mW0hLut7h/ZseJQfINo5eVu4AAxNjffAkTeBqiGlUykkgg3mSBJ3ybqRYHMd6RDcrObDcwJGky60mb+pISspVhlFMloYH5i4DM4EiLjMAbDqOqvUZ5QNLw0tcHAtkgtMA5pADraCxlaqsMqNY9r2Oa7LldzmwJFyIa+TfeCJ4BVlKDmNyzn5wJBaWiBbUvza9UDtVdpWVqwqOLnFoJFsoLgYgaudIFiZk39UCPKNORpygNsXAEnnGZLS6J1sI/uoERUAa5oykEh3Ay0HdMbzx7eISzMYcwLHjKQc7S0DMMtsr5kDfMX04wlUABBkSHaEcCN87+cItp1oLMzXFxJDSZIAbINzYEukAERefrlByjXFuYtaAA0lrS46G5a59yY4gdSgVZrRItJHHS9p6kSyTlm7SHNAPqdaDqDbu3aIMZRAMtnMQRaYEX1m9927rQbFPGP3VBZoj0bwQIvwHzKBGhV5+YuBIiYictgd+63gg+o+brbH4Ni2BxhlT2t/C5hp7nR3EoPuChAgICAgICAgICAgINLbW0W4bD1K79GNJjSTo1veSB3oPO20sY5xfWqGXEl7jxcTPrJ9aIcCDlBiqWuvZo1O+XB4i5I00UjUr1Xus55cJmCXm/G51ufFBVTqOYQ5rsrhoRIPVBmxuiUyBAIdJJMjKYHA5pvMm0WjVa1QsdVL5z1L5YFi4mLBvpWFje+6y0i33IYFU2Y58NzTFyGyTcNzawXcJvpKgYzlpIa+x5p1GYZpuJ0sLdSrIznjK5j7iD6MZTfQ5jO4zZVWW4d9Nxe+s8k2OVvpvLjJM+jaZuRM2nRUtEz4Xx9m/t719FdSqHPAc9wYBlaSM5YwTkbEiwjSQpVnW+Fb6hALQ6WkzGk5QYJE9vigsdUDHTSqGC0gnKWWJu0jMZEAHXfpaTAqabSHAGdI75nNO7hv1UoZNTM45nXMmYmSIJ1cOPr3olWXQIkW7dJ33UCdQZS4BwItfTr3OItpv379ApF7yPDxm/3hBY0dY+/eg5JtTO2KlcnWWuBI4HnGpa3VuQcns2oTTEmXN5jr7xoe8Qe9B6C8i9sfhWDZUJl7fa6nvmxc9oId8JVQ51AQEBAQEBAQEBAQfNPO5teeTwjD/5anrDGn5R+Kg+V46i4gBsGDmvIkgc0GJtKIcfVNW2ZjDAgc92n+mpGl7Y2QA2DreJ42ymPFBQWO4Dxns3IleMQ7kjS5KiZdm5QtBrDTmioRIbbQcTxV4hCLXPALYEGJuLx3WV/wByCmCDOUH9nMQD2kBTuRJ2aZDGjqDjbslsqPtCOV/RHxv9qrO0ga7gPj/7VHIEO6LfjH7KjlIQ7oj43+1BiHdEfG/2qEsBzwC20GJvvEdR3hEJYWq6m4OAB0lpc6LGd0aolW6q/MX2BmdRvkHdHqQA5xdmIBNjrqRoIAEabkGzisVn9xaIBh+YaTHOIQRouOTKQdZADWxOhM6j/AQb+Crllg1wmLiZI142IJIQbeGaeVJDXBrxFwAQWeiYBsCCR3IPonmu2ryOJ5Bx5lYQOAqNEt8RmHaWqB9dUIEBAQEBAQEBAQVYmu2mx1R5hrGlzjwa0ST4BB592xtF2Ir1K79XuLo6I0a3uaAO5ENB5UjSxCDjqwQaxQYV4kHH5x6r/wBlcTDvvAU6g3LOY/eFExCe6TMfvCjR3Swo0gUaTE6ZlRpbulg/fRNHdKDjb/hRpG5kQQcEEggm1Bs0QoG/QCDeplBs0armua5phzSHNPAgyD4hB992BtMYnDU67fdtuOi4We3ucCFCHIICAgICAgICAg6J519scnh24Zp51Yy7qpsIJ8XQOsByD5LKIQepGrWQaNYINV4RKEKYGDqrxIyFbaGVOxJQAUAoAKEjkFbxZVBEkIACgWNCARV0bHaLH16Ib405nC1XBrQYkAAnWY7URDcovG8cb2PDcdNNRxKjnbSYp27iefksJG77/fvUqPoXml2xD6mEcbO9tp++EB7R2iD8FyIfT1AICAgICAgICD535d+ROJxWJ5ehVYQWNbke13Myz6LgbgzMRqTfgHW/Y0x/To/zEQwfNnj+lR/mIIO81+OPuqP8xBU/zUY4+7o/zFIrPmjxvTpfzEET5ocb06P8xNpPYhxvTpeL/qTYexFjunS8X/UpiyGR5o8b0qXi/wCpJsM+xJjelS8X/Uo2M+xJjelS8X/ZU9wexLjelS8X/UkyHsS43pUvF/2VGxj2JMb0qXi/7KbSwfNHjenS8X/UmxH2IMb06Xi/6k2HsQY3p0vl/Umw9iDG/rKXy1Ak3zRY39ZS+WpSsb5qMcPd0vloha3zXY4e7o/LQWDzZ4/p0f5igS9jbaHSo/zFOxyvkv5AYuli6VarVY1tN2c5A4udHuZJgAzB1sT2oPqSgEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhITEhMWFRUXFxUYFRcYGB8XGBgfGBoWGhcZGBcYHSgiGhslGxgXIjEhJSkrLi4xGB8zODMsPCgtLisBCgoKDg0OGxAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgECAwQFBwj/xABQEAABAgMDBQgMCwYGAwEAAAABAAIDBBESITEFBkFRYRMicYGRocHSBxQXMjVScpOx0dTwFiNCU1RigqKytPEVM3OSwuFEY3SDs9NDVaNF/8QAGwEBAAIDAQEAAAAAAAAAAAAAAAQFAQIDBgf/xAA5EQACAQIEAggFAwMEAwEAAAAAAQIDEQQSITEFQRMiUWFxgaHwMpGxwdEGFOEjQvEVYpKyFlJyJP/aAAwDAQACEQMRAD8A9xQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEBr5QnWQYUSLENlkNrnvOoNFTdpuQEJ7rUj83M+bHXQDutSPzcz5sddAO61I/NzPmx10A7rUj83M+bHXQDutSPzcz5sddAO61I/NzPmx10A7rUj83M+bHXQFO63I/NzPmx10A7rcj83M+bHXQFzeyxJHCFMn/aHXQFe6tJ/NTXmh1kA7q0n81NeaHWQFD2WJIYwpkf7Q6yAp3W5HxJnzY6yAp3W5HxJnzY66Ad1uR8SZ82OugHdbkfEmfNjroB3XJHxJnzY66Ad1yR8SZ82OugHdckfEmfNjroB3XJHxJnzY66Ad1yR8SZ82OugJnkfKcOZgw48E1ZEFWkih1EEaCCCCNYQG4gCAIAgCAj/ZB8Gz38CL+EoD5XyhleKyI9oIoDdcEBr/ALdjax/KEA/bsbWOQIB+3Y2scgQD9uxtY5EA/bsbWORAbuTZ2PGc4BzQGipuGGwaVJwuGdeeVO1tTjXrKlG7W51smMiRIbohtEBxaC0DRSppTC9WlDhtKabd3Z2IWIxkoTUVba+ptS8m9wJJc0fIqBWmsinMpNHg1Gabd12e7HKWPkmkrPtNKNGe0locQRwepRKvDqcG073R3jipvV2NSUynFLnNe4g6KAU9CjUsJBycZ37jvVrNRUokwzYyOY7C+I+IAXUZZsi4d8e9Nb6j7JXneOY6ODrKlR1dru+u+y5ePmWfD6Dr03Op5WN2NkCHjbi2agDfN0nyNXpUSjxKcpQUra7kyWCgk7XOdHyQwOcA59BTS3qq7Uo5W3yIssOrpIrO5EaxhfafgRSrcbvq8K3ouE5RT52OdWkoXaNnM7IMGaEV0V8SjS1rbJaL6EvrVhrixRON4ulgJxit2r/j7jA0enUm9k7Haj5lS4FQ6N/M3qLzEuP1pS6qVvD+S0jw6lzbNaHmdBNavi3bW6KV+RwrL47iFyXyf5M/6dSvzOblPN6GyKGMdEubV1S037N6pNHi1aUMzS7tP5OUsDTTsrm5J5pQnAWnxKm80LR/RsK41ON103lS+RvHh9NrW5yMqZIhsiOYxz6DWWn+lS6PEq8oJu3yOM8HCMrK5zZ2WDLFHONXNBrTSRXAKZh8ZUqSs7HGphoxi2j3TsTeCpbhj/8APFVoQSXoAgCAIAgI/wBkHwZPfwIv4SgPkjK376J5RQGmgOrkDIcSae5kMtFkVJcTSlaYNBPNTlCkYfDzrSajbTtI2KxdPDQzzvr2Exl+xpWGLcYtiX1si2zE0pWy7CnOp0eGdXrS19ClqcftPqwvHv0f3I/lzMuZl6mm6s8ZgvHC3Hkqo1bA1KautV3fgscLxWhXeX4X3/ZlcgZmxphgikiHDJxPfOGksbgRwkJh8DOtrshi+KUsPLJvL08zvQ8zAxjg15cXXW8CW1FW2fkuHCaq4oYCNKMlvJ8+4rZcWzzTkrJcu/t7zvZIyWyBDMJhJAcTvsb+ABTcPRjQgox2K/E4qVeeeW/cZJqXqLvc/wB1MhOzNKdSzIXnGCxzXgXHeuGojA+lQuJxcctRbPR/YvcJapBxe6OfK1fGhw23ueWtbwuNAqiriI0k5y2Sb+RKjSlKNl2ns8lJthQ2wm4MaGcdN9x4nhK+TYnESr1ZVZbyd/wexoU1TpxguRp5aFNzb9YOPKu2FqaX7DeSuciMysR4GlwA5yrx41Km375kfo7yMOc8zYk3PNxe4BvAXV/AD7lSeC4iVfGRhyjq/Jfkh8QhlpN9uh2MxZYw5WGCKF9Yh+2d7x2LKpP1HiliMbNraPVXlv63JvDqXRYdLm9X5ksjwrl5yMtSTCWphbCAHJyD3K3cm2b3uzhslrcWK46CAeaqnueWEYo1y3bZsTb7EO34xAGz3AC5wWeduw2k7Ihs/ErFcdquKUbQSIk31jQyiyoZ5TfSFMwjtURwrfAz2rsS+Cpbhj/88VegKgl6AIAgCAICP9kHwbPfwIv4SgPkfK376J5RQGGCwFwBNkEgF1K0Gk0W0Um0m7BtpNpXPQ8kZEdKEvgm28ilsjQaG4VoAabV6/A8Ow9FXk7vtPM4vGfuFkmrR7DtSecURpsx21HjNFCOLSp1TAxavTepXywlNq9NnbfHtNqyj2nDbwbdmKhKNnaWjIOVxllkY4EwHA33jXiNhOkbVmUHHc6Sg0Y3ihtUx74bffoWy1F7owzBoQ9t/SNXCFvHVNM3grrKbMaECKjBwv2FcozaeV7l5WwEZU41YadvcyJ5zSJcx1MRfyYHjw/VSK0OmouK33XlyOOEm6VRRka3Yzyfuk7ux72BDLhqtOqxgPK532F84/U+I6PDKmt5O3ktX+PM9Vw6nmnryPVYUPCvCff3xXgJSsejTOJlPfx6aAQOTHnqp1Hq0jFjVkpa26KdhNeEj9ONd6lTLCJiMbs0st5MdMxJZhHxUMvfF+sbgxg4RarsPBWbgMcsJTqTXxSSS7u1/TzOGIw/TTjH+1asm+SZQileHkXmq9W9yTVlljY6kZiixZwjI5To1pwA1OPQFMUMsbskpWLYEpRpBxe4k8d45vSk6t5XXIJq7ZzM7HWYTfK9AUnAq82c5y0INMP33DRXsF1SM3qZnwqwwffQs0ZWrRXejFRf034Hr/Yk8FS3DMf88ZelKUmCAIAgCAICP9kHwbPfwIv4SgPkfKv76J5RQFcnTRY66GyITQBr2WwdVBjyLrSm4vZPxVznVgpxs213p2Pa8iwXugwjFhthvLb2D5OgAUwupdow0L0tKrPo05Kz7DxeIj/Wcacsyvv2m5N5uB4upXn5DTpXSGOcHqdo4SstY/L3qcb9mx5YneFzDi2hPGKXg7aBTOnpV+dmZnQqTVpRaYe4PFuGakY3b8cLR37eDfbCsaw6stvT+PoKeHclZvXsNmUmmxGkE0NBprwEHSNR06VpKDg7rYiVaMqctTBEqCWOureD6HD1e53WqzREVzRsykaoIOIx9fAouKpS0lF6rY9fgaqlTU90/iX3/PzNTKUG4+/uCuuCxHSaPSS3RyxuBUOvF9V7d3vbuejNnMTJogysZ2mLHNPJaKAcRDuUr5Z+sZW4m6K2ir/8tfoXnC79Dme7+xKJt1ltnSceAXeheSprNK5cQZx4MPv3nU48Zw6VNlLaJ0ub+SpCwx9b3Gp4MBTlUfEVs0lbYXytGeRlL67fQuVSppY3nKyOvJX2qaCG9JW1DA1cQ0orTtIlV2smYctTAhwXv04N47grV8FVKGaWrMU/iOFm2/dIkQnBrWt6ehV+MXRwS5s7zmdw386gBaIimfcX4tnCedW3DI3kzFTSJB4kS8e+CvFGyZFbOwGfFkbD0qPSf9aL719TpNf05eDPVexJ4KlvKmPzEZeqKImCAIAgCAICP9kHwbPfwIn4SgPkydgF8aIB4xvNwHGutKjKrK0fwaykoq7O/kPJkrCeyJHjF7mkODGXNqLxV2JvphTBXVHhMYWlUmr9zKzEYmtNOFONr82TmDntLg9653AFYyoqWikV+F4fZ3qMyxOyC0XNhOptoPQFxeFit7vy/ks44ZWsqlvFL7WKweyKzB8IgbCCOQrhOjFc2vFHaGHqrRSjJdm3pqb8PKcnNGrXNETR/wCN/FXHgWsa1WmtHePz/wAHeeDVRdeNn72f+DRnMlPtFzGkkG8geNU74DAmyd8AWuINb6ETY46jFJSklfk+fh+Nyvq4Ccuo1d8n+fytDQjxjZocOdp6ODDVderCmk9YlHKjKE3FqzRbLzRtAE0eMDodsOo7eJbVKfV02+hY8NqdFUyrZ/U6L4ocNWIOzYRqVdKi1LPHdep6TRKzXVe/d728NOR3siQ6S0u368Q/fiH0L5J+qKmbi1aXdH/qiVQj0UFD3uZspu37tlw4h6yqOiuqicp6FdypCbtNeQ3ejnTN133HSDuzdye+1ug0ANHLj0LlUhKysjpVeqZdPRxChOdxDh9/QukcHWk05RsjF80tTHkWapAaa3uLjXjIr90lfQeB4BLDqTW7f4+xzl1pkfz1yvUw4TcALbuS4e+tTsbh1pFI1by6I6uacsYcs0u76Jvzx4c1OVfOeMQlHE5baJf5/BvHWx1HOuHB7+lVaWp0S1IVn27vBrb0q84Wt2a19rEQyMzdHE6irfEvJGxGprMyROh3OpoY4nkUKhK1WN//AGX1OtRdSXgz03sR+Cpbypj8xGXrihJggCAIAgCAj/ZB8Gz38CJ+EoD5QjQy6O9oexm+N7zQLvRcr2TS8TSdrXav4Heybmo6IKiagu8kl3oorihgpSV+kuu7X7lbWxqg7dGztwMwXaZgD/bd11JVFR319+JyXEFzi4m63MaKO9mWniI9JXRSgu1EmnjVLaS89PrYwxs1ZlooS13A71hdJzw9utOS99xNo1qktowa77nMj5rx232SNtOlqqMRUpJ3hPXvX3WpcYajUa+FL/5enyehOex3FibjGEZ7i5r2ssuvoxzSWurj3zXDT3q8vxqo6qjFeKff4r8JneVOUJrMre+z+WdmayLBjurELm3UtMpU6iag1p0qt4d+qcdgf6eko3/uT07UrNETHcMo4lZmrS7iE5YyO+XIDyHNcSGRADQGtzXVwqKGnDqX0zg/6gw3FFJUrqa3i7X8V2q+l/mkeZr8PqYScXPWL5o1Ic6RcbjgCdY+Q7oPErCrGzui3w9S6ySJxmpMCJAh/VfFadl1qh/mXx/9Ywy8RlJf3Ri/t9jvDqTURMuvJ1knnVBBaEtTOnGbvWD6rRzAnoXCMrOT7SRTlpcxZGj0Mb7AHDvj78C9fwDCxrKTa2sbyd9zi55ZUAEOGDory3DmqeNeplw+DaVtjWUraGJ+UgyHDbXBgrsutO6eVX2EwahTS7Dn0hGMnvM3MtB/8j79jW3nmHMolWje8mYTcmeoxYoLN7sDRswHMvEcZ4d0izJakuGmpSO+lSbgBevFOjKMsjWtzfMkm2QLPXKTHWKvEMNqBUVLtdAS0UFNBJGkL23C+AzpwzV5qLly3fmUVTjMKsstGLaXPkcXN6YYCGBzSHO78XAVwtA3i/TeNq7cU4TUhTdanJTilrbdeKJGFxcZSyyVmycxsniHAi6SYbvwleSw9ZzxEF/uX1LWpFKlLwf0Jd2IfBMt5Uz+YjL3p5omKAIAgCAICPdkHwZPfwIv4SgPk2YhW5gtvvfS4VN+oLrSjmmk+b5bmsnZNkslM0HMNWRw06yC3nBXpqfD+gd6cnf33lX+7VXSUdDuy8rlKGN44RB9VzXfioVvKpNfEk/K34JMIxWsW178yyYyzlCH38EjaYbvSLlxdSS2in4X/k7xpxlvZ+KX4NP4YzGBDffYuU8StnD1R2hhqV7uK9V9GZoGeMQd83jpTnUKriIxjdw9LfR/YscPhKc3pJp90r/9k/qSTNnLrI0YMFznA11EC/lB6V5zicqdWk3FWktvfvzLipRnGn15ZrfP35vyJQ2rDwrxFSo5PvOVjKGsiMeyIA5rriDgffWtKOIq4aqqtJ5Zx1TRzrUY1I5ZK6Z5pnPk3teKWirmloN+JbeK+U2nJQ6F9o4Fxf8A1LCdNNJNPLNLt5Ne/oUNTDqlLok9UrrvXZ5HW7Hk4axoLjW7dGO8YWS1xO0fFjkXk/11g3F061u6/bzXnucnVd4vy9DtkWrWFaua2/SKuuGk1sNp/mLylCipQbe72+X+F5knPojsWgWh1brBpfhfDbwYEbL9GAizpRcHKK0Xje91e/zJkJPRM5EaMGNeRcQ1jnVJre0VIvpiTccOYe6/TCjmcLdn0NZ1HF3b0IjNubMOAdZa+yY1qrg4QmEQxUPdYq97q1oLLIVoAh4C9VN5a3V1V7ef8Eb9zeVzLGkmRIsNgjboHtZEoG0Y6H21uD22w+ofQVuFBgCahwk1sZUjQfVty31va/Ya9OzrSGTIEJzpiELMOyYQ3JryC8xorDZZGfauaxjSa0cXUABJpXRr1HHo3vvr2W7jvRrSZKJaDSLDhOdUhzS6nekbsINz61rU6tBGN6hYi1SN7aeu1yQ8RLK2velzWyw+jQCbQONn5VlhdVpGgi8HSKG7BecXD4xxyry2X1K7jeIn+w6ujk0vJv3c8dyhkKJNB0y6MC8tY8tsb2jjCBEIhxtMhNeQ+4WCyzfiLaUnJ3ZHo0o0oKEdkbcHNftZ5+OLxUto6GYYdvojaNq4kvoy0W0pYcHVvAUjCVHCqux6MsMDDpK8Ydp6DLTJdJCt7tze3hshwJPAL14KtQjS4lKEfhU/uXVfqU5x7Lr5Ez7EHgmW8qZ/MRl7M80TJAEAQBAEBHuyF4Mnv4EX8JQHzZkzJUUR93BZSpNlxNSDUEXA0NFfcO4dXThXTVuzu+RDxFWEk6bTJ9JS1sb3HUDfyAq8qVMr1IUYW0M0XJrxe3HkPQtI14PRkynCSWiOZNZTmoOh5HKFpVULXST9CVDNzjf1OdEzrLu/hMd5TAoFRtrqpr35kqnVop2kreDa/gxjLMtXfSwbrLDQ8n6KtqSnB3t8m4v35FjB0pLSf/KKkvmvyb2THy4ismJYhzoZJLDvXUIIdUabnG+9Qa9KlioOC0l4Wl+JejZ268Y6vTtTzR8+cfVE9kJ6HMwy+E7A0cDcWup3rhoNOLhXgOI4WeHqXmt/k/fzOsZJO3Mvhmhpr1qvWupu9jBlfIbJpjbRcxzCS1woSK980g4tNOYK44PxytwmpJ00pRlo4vu2fiQsTho1rNuzWzORkvM2JKxhEbGa5gtVaWlpAcLwLyDfQ0OpXnFP1PR4hg5YepScXdOLunZp+WlrrzK3F4JuLnF7a/Ixxpi8nU7XhXTzBedhGWiRVU8UnG5Lms+LbeahrdJryqBOrPpN3dF1TnFoiuckWjIwJNLLnG80uvwrSuBqvon6IhKU5Sl2r+TjipJxPOsg5RjviC1HilsIVaN0dZaaWBZFaNo1zqU0VX0athKKqNKK+RXRk7GlOZTiOiAh77VDfbda3zrdK1r3xtU134la1sNB1FBJWWv2OufQnUnOxW7mHRojogbv3mI4vOsF9alta3Voo0sJTcXaKt4E+hKLgkztSEyaABxABqACQARpArQHaodbDRve2pNWV62OnCeSG2SAWG0wm8CzWgpqNSOAlU+OwCqQcVpc2nThUjka0IBl3MmVmHuiy0ZsuSTbgRKANdpEN7iAW6r60pwnzDxVXDdWrBtdqTZE/aXdr2ONk7IwgxC2G4RIhuLxQtbU6LJIOjAknC4VrJpYicrSimvEtcJTpYNOpe8+Xd4+7vuPS4UqIMo+1juTmtGoWSAOEk1K4Q4alLpZrVu5yqTfRycuaZLew94JlvKmfzMdWJREzQBAEAQBAR7sheDJ7+BF/CUB4fkwgw2i3fS/A+le2wD/APzQt2FdUSU22jPFyfMG+FFZwFvSKrNaVTlbzRmM4LdF0OdypD+QIg2Go5K9CgvpOcYv0JMKkV8P3+xeM7HNumJdzDrp+noW2qWqa9USoYiPN38Vf+S505Jxr7TAfrb08ty4ThPeMk/T1X4JsKtGWja990ro0pzIMN4+LeOUEKNUlPaTa8Vdeln87nZYWnJXjFPwdn916o5EDNuca8Pgww4tIIIczEXirXOrxEKhxmIoU55Kr80n6aL0+ZvCnVp6xuu5/lNnrGT2bk2LZY1hcIbngNAqRrppFSKrxONxM60nGUnLvepIUI9V2tYyuodjtt1VXJNHV6m7KNdZF/ER/dYbRzlbmbeVI4DDWne6OBbyabS5nCFO977HnUyAS68UeCRsrf78CuVFpJngZU+iqTpS7Wvl7uTbJ0a2yHtaz0VPSqypTXSLx+5e4eveKT7CI56ENO56YjX8gF3Qvrn6TwypUc/n6ipPMrHneTRZhzJ4hxBw/qC9vNXqpnBbGDIkDdJkamm0fs4feoo1TSc34IyuRJJmPZL37bI4ltCGZJHSFRwdzqyU1ZYNdBylRKlPNIs6VZSO1Bm6NAr7hQp0ru5LjPmQ7K+Vt1cWt7wE04zjwklVeIo5uqkHK51Mgloo92ANGjWdfEudHBRlLXZfUKSud6emLbXVwDH8paaLOIwyd3ySb8zFWWaL8CZ9h7wTLeVM/mY6pCqJmgCAIAgCAj3ZC8GT3+ni/hKA+ZnVabTXEV1FXtDPTpRlGTWhHlZyaZsS2W4owfy0UiOOm9Gzm6cTebnFMeP90Lv+4b5Ix0cSsTOCK4UiWXjU5vqWVXa0sjKjbZnLmCCasbZ2VqOIm/lqo9TK9YKxum+ZiZGGmoOsLmqkZaSNk3HWJ18lZXjQntLH1BIG+NRjpOIvULiHDaNek80bpa6b+X83ROocQqxai5XXf7+lj1qSj2gbQ32DtopSq+U1I63R6CUew22uFKOvGg9B1FcLo0aaZRsYtuxG00Wl09TLjcunQ0wzU30SPxKxrFO/cQBrm0cGG+G43aQCS4adJtjiC9ElJxTZ47jtB066qraX1X8WJFkicpDadDHEHlB6VCrwaem6IEKqUk1scTPGKHzAOhgDeVjD6SV9a/TE4ywya5xX1ZNjK8rEDN0GYH13+li9h/cvD8mxt5oQqbq/aGjiBJ9LeRRK3xNd5ujbLbdgaCen1LsnkuzBsRYu/YBtcejmXOMeq2zaFRxehZlbKZbCedJFlvHjzKPVhli2T4YhNEWlo94AOlV9GlmVzqsRHY6+Ucthr4bGYNpWmtZnkg1FBVktGSaPO70tr9U8n6rNWmnQm+5/QTqdWx6j2HvBMt5Uz+ZjrxZFJmgCAIAgCAj3ZD8GT3+ni/hKA8Gldy3JttoN19SOle0wUYvDQzW2IFTNmdjmzjJeu9hmvl3cwK41qeHvovl7ZtFy7TSEAaDTZX+yj9Ek7xdvfgbXLrBWcjFy0hatMyYYsKq5Tp3MpmODHLDQ4en+65QqypSs9jbKpIneZWc1lzIMQ1a6jYT9LSbgx31a4asMMPOce4LGpF4rDLXeS7e9d/1+Za4DGNNUqm3J/Y9AbG0OHvwL57KLT0LxxTRZFeASKAjUceKuITLz2EdUU7QhPad4OcJ004Pcw9HqQ92Qmy8w4sFBEaQd8SK3OaaHTUU+0Ve0sbKtSyt6ooePYTpMLKcd1qvLf0OhkY3xWa2g01luI5OhKiurr37Z4qlJSdlzRxcp1O6Vxq2vEKepe5/RuI+Kl2bef+C4p6qLXNfQi0dlGzA+1y2D0FfR73a99p0NvNw0gxPLfzNYo1Vdc2WxfkmJahtdqB9S3q72QQbFrMPHisWbWpoxzOXnQ+lgagTyqJi6ihh5SN47kehRQL1TQx0YUb3Oijdl2SyXx4ddL2k8tSqijiKlaqkzpZIlwmCIl5ucRxHAc13EF6TGRyQk+Uov52+5rCbkj3PsPeCZbypn8zHXiDoTNAEAQBAEBHeyH4Mn/wDTxfwlAfOjGktFBoXrMJGTw8bdhDnbMzE+XdqWZUZrUKSNdzyFFlOUXqbJIoI3AirPmMpkbFB2cN4XVVIvfQxZlzm6RhyrLirXRkwxIbSuM6cZmU2jq5vZFm2xYUVkEPh1tAvcA27A3EmoNKGhvA1VXneI46hTjOhKpa+jtq19vHXYscJh6rnGoo3XeetPl3PYxxN4FCvn1acczcdi+jvY0g6sQE1r73rm11HYkqJuOeda4JIyoo42cUq98OrHEOF4OojDnU7BVY05q6OdWkpxaa0Odk6a+NhPpQOIqL7iSWuHEfQCrVxVnH5HzDEYeWFxEqUv7Xp3rk/NGDOGHYiuGhzLXT/SrTgGM/b4yEuTaT8H/knUJdUiEY/vR/l+gu6CF9mXxIkGTIj97FH+Y7nA9S5TV5XMmPN6L8W9ukH0/oVrfMzBWWi0mI7jg1p5qHoXSXwpA4mcE1bLTrb6SVScdqqFFRXM60ldnFqvHNtKxIN/IRpGhnb0FSMI3Gal3pGHsd2bPxrR9Zh+8OjpXrcU89CT/wBr+hwWjSPoHsO+CJXypn8xHXhyQTRAEAQBAEBHeyJ4Mn/9PF/CUB85MnSGgDQKK9o8XjToxgou6ViO6Lcm7mCJHcdK5z4q5bpmVSsY6beZc/38eafobdEy0sGzk9S0eNg+QyMtse/6rH72HYx0bL21Glbxx8Y7JjomWRodbwaHmWk8bGTuk0wqbRJM085BLMfDjNdEaSCyxTe42wakXG48NV57i+C/eSU6bUZc78+zbsLLB4voE4y1XIkcPsgwAKCDF+51lTf6BWtbOvUlviUG/hZrvz6g1BEKJ93rIuA1rWc16m64rD/1foZm5/QNMGLxWOstf/Hq1/jXqYfFY8oso/PuWP8A4Y33ess/6BWT0mvX8BcVXOLOHGzghFz7MN4abxWhIddfjpA5htVjT4bVUUpSV0UnF4QxsozgsslprzX8PbzM2Vs6IcYsIhvBDXNdeL61pS/aeQLpTwE4f3LR3RCp4SUYuLZG92FSdbXNPHZv5udfRF+pKOl4vTw/J26F9pbKxLBf9ZwI2Y19Kf8AkVC98kvT8meifaJN9h0Q6H4AaMfWua4/RU82V28vyOidipiC1HPzjSG7K6/7LaX6hotJKL9PyOiZyY2TnO+UOdU3EeILF5bK1jpCGUxHJDvGbzqsbuzczS2T3Mc11oXGulSIVlHLpsYsdeLFBc11MCCeI16FbS4vTlRdPK7tNcuZpkd7nv8A2HPBEr5Uz+YjKgOhNEAQBAEAQEW7Js0xmTZtr3AGJDdDZtc8EAe+pZSuYbsfOO4/Wbz+pZysxmQ3Ha3n9SZWMyG4fWbz+pMrGZDcPrN5/UmVjMiva51t5+qmVjMh2ufGbz9VMrGZDtc+M3n6qZWMyHax8ZvP1UysZkV7WPjN5+qmVjMh2sfGbz9VMrGZGdtoU/dXU0HRxfqmVjMjMI7rt5LXVp8WdPAEysZkaQlT4zefqplYzIdqnxm8/VTKxmQ7WPjN5+qmVjMh2qfGbz9VMrGZDtY+M3n6qZWMyK9rHxm8/VTKxmRTtY+M3n6qZWMyHa58ZvP1UysZkO1z4zefqplYzIp2ufGbz9VMrGZHv3YbjtOTIUIOBfCfGDwNFuLEiNx+q8c+pYasZTuThYMhAEAQBAeN9knKvbU2IDSNygVBqaAv+VeeIcRWyRo2QKfgG1opfhZPBgOFbA1YYqKNwqcQNG0369N9RcgLgbJaHipB+TQjA3DFtK6wUBQQ3UroOI3ocb6YA1/WqAq11oANGki8NAroq4ioHCSgDXUO+BJNRovuAGII5BW/FAV3N11b21wuBrfiAagbUBUPLqFtQcK0aBXXcAAKEICjHWRQ1v2DE0GLgbtgpxICtl1QTeBUAXV4xq4fWgFbVbNRUUPejRU3ilNg4EBW1QWXC/AUDaVrffQlwv1oA22HF2NbrwHG4NxafTw7UBQi2CGVA2kY01imhAXxItDfW1cAWhoGOwX4oCxrHCup2FwJ0g1GjgQFoBdSybwaCtANlThTDFAXviY98C6guDQNWFNuvSgKMa5vBU0uBN2ut9LxTj1ICkBwraoTwUHNeP1QGSY3woAQfs0+60IDLk1toem9jRUY98NaAmGYeVu05xocQIUfevvBANbnXXXEjicsNXCdj29aG4QBAEBw88stCUlXxB353sMfWdgeLHiWUrsw3Y8Ygw7LauLrTiSawrYNdp971uanMmyC4t04/ui3gqQLuCqA58xL2auI4iDquA1V6UAhwTExBAAvLIZuF+Nm7jOrYgMTXUNAG3ihq2vpwwN4QFz4QFDW84gtIAGgg1v5kABtjfUbdTetw5Mb9PGgKtNK0AIIIqWm68XjUeDagG5txrfhSyactcb0BdW1QOo0YVay+hpfdSp2HSgA3p3oDr/lM0VqCQajQPfEBuTaVqajAWTTjNdp0aBruAqL7iABrDTW83nG+4C4oAaMrZo7ymaztqBwoChhg0N9w8UkacUAtCtCBcDeGkHRjyoCr4BYLwdJ3zHCuvG65AWtaDZJuIFbgTfq4PfgAq5preLtdk+50oCxrAP7td0BAVu92O9SA3pWCaXNOkikG1XjPCgEFm5xDUGybwTDJvF1LNDo4RcgOlMRmPYQC+uI+Icy8YXhtAgPY8wMt9tSrbR+Mh7yJxd67jHoK0aNkySrBkIAgPKc/JwTUctqTDhVa2huJ+U7lu4AFukaNkZjQT84/lHqWQceYl6FxDnVOJuNbgNWoDkQHOmGE3Ek8mjDAICjYjxWjiK40AFeZAYw28mt/APRSiAudU3E7MB6kABpTHZ3vS0oC8vG37vSxAVL6Yh33eogDngeNoPyNIr4iAue6hoQ4HSN6P6EBUuvpR1a0+R1EAc+lxDvu9RAHkXtIdjQirdB2MQFWu+SLWqlW8neIDHUVrR1fs+ixRAZHRbVzi444kacfkXICxuptQBXUdO1tUBUl2vmb6kBaGkG0Ca8WzRSmhAXPe4ihcSOL1IC+Xc4UAe4DYAfSL+MoDfgwg4guiRCReDZaDW7SDfhgUB2peGafvYo/lQHczQmWykcOBdYib2La2nvuI38FVhq6CdmetArQ3CA42deU9wgOLTR796zWK4u4hU8NNayldmG7I8tLVuamvGagOXNMQHMjQ0BrliApYQFbCApGZgNnvzUQFGs96gcyAyRG7KXDTTbfXTegLphu+djiR3w0GnQgKRReacxoOQoDJGYbbvKOnagLYrLz66cxQF8du/d5TvlDWUBY5pBrh9pAXvhC24YC0RiNepAY3wrzp21HTegEFl/EfX0IC/c0BTc0AENAZIcNAdGVhoDry7EBuNagPRMzspbrBsOO/h0adrfknkBH2dq0aNkyQLBk8+z2l5x8wNzlYkaGAAww3QwBc0uJER7TaLrQ4GtWU0atM4ByZO/+vmf5oH/AHra6MWZjfkidP8A+fM8sD/vS6Fma0TN2dP+BmeWB7Ql0LM1n5pTp/wUz/8AD2hLoWZiOZs79DmeSB7Ql0LMp8DJ36HM8kD2lLoWZX4Gzv0OZ5IHtCZkLMo7MudN/aczo0QNAp9IS6FmUGZU59DmeSB7Ql0LMu+Bk59DmeSB7Ql0LMqczJzTJzPJA9oS6FmPgZOfQ5nkge0JdCzLvgfO1r2pNVOyB7SsXQsypzPnNMnNHige0pdCzBzOnD/g5rkge0rN0LMr8Dpv6HNckD2lLoWYOZ85j2nNckD2lMyFmU+B039DmuSB7SmZCzKtzPnAQe05rkge0pmQsyvwRnPocz/LA9pS6FmU+CM59Dmf5YHtKXQsx8EZz6HM/wAsD2lLoWZe3NSc+hzPJA9pS6FmbEPN2cH+CmeSB7Sl0LM2oeSZwf4CZ/8Ah7Ql0LMzDJ85/wCvmuWB/wB6ZkLM6+akGcZNMtScaFDIcHviOhWQKVAoyI4k2g2lBzVWG1Yyk7noi1NggCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCA//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8SEhISExISExISEA8QFRASEBISFhUPFREXGBUVFRcYHSogGB4lGxYYITEhJSorLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy8lICUyNy8xLi8uKy0tMCstMTcrLTctLS0tLS0rLDEuKy0rLSstLS0tKy0tNy8vLS0vLTc3Lf/AABEIALIBGwMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAABQcDBAYCAf/EAEoQAAIBAwAECQcICAILAAAAAAABAgMEEQUSITEGBxMyQVGBkbEiYXFyobLCFDNSYnOCksEVI0JEU6LR8RazCBdDY3SDk6PD0uH/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAAiEQEBAAIBBAIDAQAAAAAAAAAAAQIREgMhMVETQQQiYfD/2gAMAwEAAhEDEQA/ALlAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeKteEedKMfWko+JFXXCvRtPZO9tIvqdzSz3J5AmAclc8ZehIb72EvNThVqe7FkXc8ceh4813FT1Ldr33ECwQVRc8elkuZaXEn9edGn4ORoPjruZ/M6NUup8tUqeyFNAXMCk5cY/CSr81o+MF/wdw/5pyS9hhqac4YVdydJfVp2lP322RtOl5H3BQtXRvCqrz72UM9Hytw/yomtLgDpWr8/f59Na5re9gjlE8avuvfUYc+rTh69SEfFnyyv6FZOVKrTqpPDdOpGaT6m4soH/AFVxjGUql3sjGUnq26WxLL2ubOo/0dqH6i7qdEq0IdsacX8YmUvguOlvAAsqAAAAAAAAAAAAAAAAAAAAAAAAAAAcjxr6VqW2i7idOTjUnydCEotqSdSaUtVranq6x1xXXG/LlJaLtc/PX6qyXXTox8rP4xSOMo8VtB4dW4qylhZ1YQW3p2y1iRtuLHR8d7rz9NWMfcijs4ozwiYcq24xzFvxfaLj+763r1q0vY5YJKjwR0bHdZ23bRhL3kycp029yb9CbM8bef0ZfhZbujsj6GjqMOZSpQ9WnCPgjZUTbjaVPovw8T78mrdFNelyg/zKZZcfpbHHbScTw4kkrGq98YLz639Ealek4txeMrG7duyTjdws005RMckbMkYZoWEQHDG45OxupbnyFSKf1pLVXtkSHEfaami6csY5SpVn/wByST7kjmuNa5ULCUempVow7nrv2QLF4BWfI6PtKe5q3pZ9bUWfbkvgpnU+ADRmAAAAAAAAAAAAAAAAAAAAAAAAAAAVjwsny2nbanvVpYVK3onVk4+DiWcVToifLaW0vcZzGNWjaRf2UcTS7Yorl4Wx8unpxNiETxTiZZ1FFZZl2k3Wne3USuik1BtJbZvfuwkv/puRlU6VB+htfkaFFPkqMdSMlOSclJZSi05Zx0vcu02KdSrys4uMVSjCGrJa2s5vOsnsxhLG7O80l7K2d9NrlZfRgu9/kj5yk+uH4H/7EbCrdcinJU1XcnzY1HBQ5TqaUs6nX0mzU5TlIYwqeJuXW3+ytwltTxmpWxCvJ/tRxu2Rx+Zz3K68qkv95UXYpNL2IlacqkZVpzb1Ek4RaitVRi9Z5W15e3aQmjIvkot75LWf3nkrlf20mT9d/wBe5owzRsTRgmRSK342/wBZ8itlvrV5fDTX+Yy77SmowhFblFL2FJ8IYcvp3R1Heqap1GvOpTqf+OJeKRfFTIABdQAAAAAAAAAAAAAAAAAAAAAAAAAAHmrUUYuT3RTk35kssqfixi5Ws7h866urm4f3p4+Fnc8YV9yGjb2pnD+TVKcX9eouTj7ZI53ghaclZWtPGGqFNtfWktaXtkymfhbDynaaI/SOs3hZy2o4W1Lbg2butqx2bG9mTXtblTr0YLpnDugsv3Tl6tlsxd/4+FkubpZQrKpSUW1RhCUJR1YPXeEoPWcspLbuW08xp19Wtmb1pTnyTUILk4OKUdjk1LDy8vGeozKk9eU+uKilnYsbd2Nm30mrU0e5UlSbb8rWb5SUW/L1sa0UtnRjqOvHX+jj1fL1VoVmqC5SS1JQlUktVOpiO2L27Mva9/V5zbjGWu229XEUo5WM7cvdnq3t7jy4S1k9mEmt73PGdnYYLWyceVes26rct/NeMeT1Ib3O6dd9vN3SlyFSMpPMtZN5zsnsxu8/sNNLCx5j1pqtG3oQi23mcY7N8ntk/RuIuhpJy6Fjqy2zHLqzHLVa49DPLDcbszBMyuaaytzMUmWrKOD4Kw5fhHXnvVClJJ9TjCnTx3ymXQU9xJU3Vu9JXL2qVRJP16lSb9jgXCaxlQAEoAAAAAAAAAAAAAAAAAAAAAAAAAABwHHTVzZUbZb7u9t6HYm5574x7ySpRSWFuWxehbiE4xanK6U0Vb71TVxdyXnS/VvvpvvJh1NWLl1JvuRnnWmEedJzWolnblNLzbcmrwVqwnd4is8nRnNz87ail3SZBaQv5PWedrJbi2SSvK8nhLk6eepRjKcn/NHuOTHLn1NvVvS+L8e2111KspNSXLYcm9+xbXvWc42bjeTztNOlNLClVnJ4is6jWZdbwsbTdZ2V5sa7ud/kzeJau5LL61lrYZo7cPaunHZueDSoT1tVqs5KWs04qO2LbxjZjZu7DfQJ/XI8Ppxbt4OpCCXKT8p4y/JSwvxEBZOSljWjKL3Ti00/6PzEnwysJVbhy6KdGEcefypP3kQGgst7P2mv7nB1pvJ6/Q1Oj5dhavye1mppu65K3r1P4dGrP8MGzchHVSXUjmeMS51NH3H11Cl+OpGL9jZ1YTUkeTnd22M/EHZaljVqfxLiePVhCMPGMizTkeKe05PRdr9eDq/9STn8R1xvGFAASgAAAAAAAAAAAAAAAAAAAAAAAAAPqAqq7q8tp68n0WtpQtl608TfvTR0Sw009zTT9DK50Dw6tLa50jVr0atWd1ezqRnThRmlQhKSpx8ua6H4HUUeNPQz51C4j/yIfDUZllLa0xykiM0pQcHKD6OnrXQzq+AM4ULBVZ5xWuZvYstylUVGCx6YohrjhzwcrPM+VTxjLoXK2fcPVjwn4PxSjSvbmlFZxDltIwisvOxS2LsMsOlcba7+p+Vj1OlMftYsJxe5buuLXij25HDPhVox7IaTwvJ8qV3h5csNYqR6FtPkdPW08aumHDKhsV3oubUnLylidJ5wunuNtWOSWe3bakforuR7hJbljZ0Lo7DkdHXdSUtX9IyktRT15vR01rOTWp+rgtuEn1bSWhSum8xvKTXntYSb7Y1ELuE1ZtXumK8q1/XnrSdOnXlCMdZ4lOHkbF1LV7zodC6M5Na81ib3R+iv6kho3gY4TdSVblJOUpfNaqUm855z6ySr6LlHa59KXMm9reFuz0swxwu911dfrzjMMPCPnI4LjcuXG1pwW+dfLX1YU5P3nEsN2L2+XHYk3mNRb92+JXXGLbylfaMt8pqc4zaWdsZ14R25Se6EjXHy48vC3uD1qqVtQpLYqdGnDHqxS/IkDzSWIpeZeB6NYyoACUAAAAAAAAAAAAABk8SqxW+UV95GvpK0nUjqxqcm+ieop47G8PtIOWhNILm3NtP7S0cfbCZF39LST7dC7un9OPfk8u+pfS7kznXZaUj/ALOyqerVrUn7Ys8OekI86w1vsrulL2S1Su8vS2sfbo3pCn532HiWkY9EZPuX5nOS0nVXPsb2Pq06dRfySZhlp+3XP+VU/tLauvhK8sk8cXSy0o/4cu/+hhnpefRT78kBDT2j5fvVNeab1fewbVK5tp8yvRl6KkX4MjlVpji3KmmK/RGK+62atXS91t2rsiv7mVWze6Uexs+/I3/E7v7kcqnjFa1uA1juVKUerVq1Ni7WzTq8BbXodZeipB+MC0KliutvsRqVbSPVnsX5DlTjirCfAWl0VaqXW1CS8Ea8+A3VXfbST+Is2VnHqftZ5/RsnuhP8P54J5U4YqulwJq9FaD9MJLwbMM+Blz0TovtmvhLY/Q9T6OPS4rxZ5eiX01KS9MtvsyOdR8cVDU4H3X0aUvROPxJGB8FLpP5iOfqzpPwZcv6PorfWj2QlL+hjnTs486pJ9kI+LHyHxRUMdF6QhzYXEcfQlL4Weo3GlIbqukI+itdLwZa6ubHo8p/ap+6hUrLH6m1c3s50LmSx6VGXgTzvpF6c9qsXCXS0Nnyu8Xr1asvfySfAu6r3mlLWdepKrKnGb1p4yqcIT1VsW5SnntLDt6N2/3LD6HC3Ue91En7DetOD1zKtG4nBqcabpxTdOKjGTTlueXlpdyLS2/Stkn269XqPaukRlHRtfpcV25Nuno+XTJdiLs22q6PSqowwtMdJljRQHtTR9yfFBH3AAAAAAAAAAAAAAAAAA+5PgAx1benLnQhL1op+JH1+DlhPnWtu/PyME+9IlABz8+BOjXuoaj66dSrT92RifAuguZXvKfq3U2u6WTpQRqJ3XLy4J11zNIXC+0p0anwox/4c0gnsvqctjWZWmHt9WaR1gI4xPK+3O2+grtRSldweNmY2zXjUMn+HJPnXVb7qhHxyTwHDE55e0EuCtD9qpXl6ZxXuxRkjwWs1+xN+mvW8NbBMgnjEcr7RkeDtkv3ek/Wjr+9k2aWjLaPNoUY+rSgvBG0CUPkYpbkl6Fg9ZPgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8REA8PDxAQEA8QDw8NEA4PDw8PDw8PFREWFhURFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGisdHR0tLS0tLS0tLS0tLSstKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLS0tLS0rKy0rLf/AABEIAKgBLAMBEQACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAAAQIDBAYFBwj/xABQEAABAwECBAsTCgYDAQAAAAABAAIDBAUREiExUQYHExdBVGGSk9HSFBUiIzVSVWVxcnOBkZSksbO04yQzNEJTY3R1obIyYsHh8PFERYRk/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAECAwQFBv/EADkRAAIBAgMEBQsEAQUAAAAAAAABAgMRBBIxEyFRcQUjM0FSFBUiMlNhgZGhscEWQtHh8AYkNGJy/9oADAMBAAIRAxEAPwD62ug80SAEJBACAEJBACkkEAISJACAEJBACEgpAISJCQQkEAISCAEJBSBISCAEJBCbE4oy43eU5gqykoq7JNjQALhk/wAxrinNyZIKhAIAQAhAkAIQJSAQGVdxxggMFvWvFR001XPfqULMNwbcXON4DWtv2SSAO6obsWjFydkfK5NPVt5wbPJbsF1UAbt0CNU2h0eTriQ19u13pfw02jGwXENfbtd6X8NNoxsFxDX17Xel/DTaMbBcQ19u13pfw02jJ2C4hr7drvS/hptGNiuIa+va70v4abR8BsVxAaep7Hel/DTaPgNiuItfXtd6X8NNo+A2K4hr69rvS/hptHwJ2K4j19e13pfw02nuGyXENfXtd6X8NNo+A2S4hr69rvS/hptHwGyQa+va70v4abR8CdkuIa+va70v4abR8Bs0abP08IXSNbPRPijJAdIyYSlg67BwBeO4VKqDZn1prgQCMYIBBGyDsrUzGgBSSJCQQAhIIAQklGwuNw/0FEpJK7JNjWgC4f7OdcNSbkyRqhAIAQAhAkIBAJSAQAgMq7jjBAcTpy9Ravvqb3iNVnobUfWPlFi2HSPghe+EFzo2lzsKQXnPiK7KeHg4J2PrcNgqE6UZSjva956LdDdDtdu+k5Sh4aHA3fR+H8P1Zph0PWb9ekb3WyTerCXPPDtaGb6Oo9y+56tm6E7JLhh0jHxuN1+qTgtOwcTlzr0XaRx4nAxyNwVmvqdAdLyxtpM4Wo5a3yI8TeA0vbG2kzhajlpkXAkkNLuxtpM4Wo5ajIiBu0u7G2kzhajlqMqLII9LyxdmiZwtRy1Dii2UsOlxYu0WcLUctRZEpIrdpd2MP+EzhajlqLI0UE+4idLuxtpM4Wo5aiyJ2aMjtANkY7qNnCz8tXUUaqlHgUTaBrIaCTSMAH3k/LU5UWjQjJ2SPLm0JWYT0NIxozapMT4+iTKjthgqSW9XOU0f2DSU9NG+CERvM7WFwc83tLHm7GTsgKs0kjmxtCnTgnFW3n6Dsz5iDwMX7AtVoeK9TSrASEggBCQQmwISNjSTcFDaSuyTaxgaLh4znXFUqOTA1mQCAEAIQJCAUgSAEAIAQgyruOQEJOJ05eotX31N7xGqz0NaPrHzWwT8mp/BNXq0F1UeR9phH1MOR6sbthWkjrjIsWbVyxfTVBadw5RnXPVoqSKSjc7OyLVZK1rS7pgFxacRddsjOsVFpbz5rG4OVKbkl6L+h6OEhw2JB6qLA56gvFCa9QaWJmouVWWjTuQD1WxtYjNLiuzqUiYx3mNz1c1ynk2hPhOu2G/qdlSdlGnZX4mO9Dc47TR+iRfiW+zkVJ6HB0j2a5/g+42Z8xB4GL9gWsdDwHqaFIBCQQAhIISDWkm4ZUbsSbY4w0XDLsnP/ZcVSpmYJLIgEAIQJCAQCUgEAIAQgEAIDKu45QQk4nTl6i1nfU3vEarPQ0pesfMLDd8mg8G31L2sPHqo8j7DCvqY8j0mPVnE6Uy9sudZOHAup8SYKq0XTTLI53NIIOMG8HIQc4Ko4JhpNWZ1FlaIQ/BZKLn5A/YJ3c3+ZFhOk47zw8V0Y43nS3rh/B7mEsDzEhFyixoogHpYtlKdUx3qjOiMbKxPVFFibGd816k0UbGWee4EoaQhdnlkqx2JCQmxx2mj9Ei/Et9nIqT0PP6R7Nc/wz7jZnzEHgYv2Bax0PBeppUgEJsCEiQDAvxDKmhJtijwRunKf6BcdWrm3IMksSAQAhAkIBSBIAQAgBCAQAgEgMy7zmBAcTpy9Razvqb3iNUnoa0vWPk9jO+Tw+DavocKupjyPqcM+qjyNzXLfKjoUi+ObOspUuBomXMkzFYuD7y6ZdhrPLY1TGHq2QsjtrDtHVoheemMua8bO47xj9b159alkl7mfP4vDbKru9V71/BtL1lYxUSD5MqrIvGJRqiob5RyTYlBKjvMxkQ0ymWd+woRvCNjPermoIDj9ND6JF+Jb7ORUnoed0l2a5/hn3GzfmIPAxfsC1joeE9TSpAISJCRgKQbIYsHvjl3NxcdWrfcgTWBAIQJCAQCUgEAIAQgEAIAQCQAgMy7zmEhJxWnJ1FrO+pveI1SehrS9Y+QWSboIu8avpcIr0Icj6Og7U48jeyQLdxaOhSLAVU0TJtKho0TL2SLGUDSMieEoSNLm2yLRMMrX/V/heM7Dl8Yy+JVrUdpCxnXpqtTce/u5nbPlGUG8EXgjIQchXjtW3HiqL0KHyqjNoxK8NZM0sQkkv8AEpLxiVvkQukZXuRI1SI4SvYkL1Ngcjpnn5JF+Jb7ORZ1VZHn9Jdmuf4Z9ys35iDwMX7ArrQ8I0KQCkkEJNkEWDjP8Xq/uuWrVvuRDZYuYgEIEhAKQJACAEAIQCAEAkAIAQAgMq7znBAcVpydRazvqb3iNUnoa0vWPj1lO6RF3jV9Pg+whyPoKD6tGgldaNLi1QjIVOVMnO0SFU4ZlOxiyVWkWMrs48YVHh+DNI4i2qNcVQ12QrCVKUdTphUUtCZckUaXOo0OV+HGYieijxt7w7HiPrC8vH0css60f3OXEQ9LOu/7noOevOZWMSBkVLF1EgXqbE5SqSRTYuolDpFeMC1iOGr5SbDEiuqZBxOje1aaoibDHURYTJg8/OFtwY4YnBpByjZXNXnTcbRd2eRjsTSqQUYO7TPp9Hpo2K2KJrqo3tjY0/J6nKGgH6ioqiseTYu11bE227zap5CnaRJsGurYm2nebVPIU7SILoNNewhjNW6/Y+TVOLd/gWVSo3uQLdd2wttu82qeQubKytmLXcsLbbvNqnkJkYsw13LC227zap5CZWMrDXcsLbbvNqnkJlYysNdywttu82qeQmVjKw13LC227zap5CZWMrDXcsLbbvNqnkJlZGVhruWFtt3m1TyFOVjKxa7lhbbd5tU8hMrGVhrt2Ftt3m1TyEysZWGu3Ye23ebVPITKxlZ0GhzRPQ2g176KdswjID24L2PZffdexwBANxuN12IqGrENWPYUEAgBAZV3mAIDitOTqLWd9Te8Rqk9DSn6x8Us49Kj7wL6jB9hDkevT9VGoSHurqua52h6oFdNFlNMRK1RNxXqSLg15BvBuKlpNWZKk07o9KCowhu7IXNKnZnfTqqSNVn1pika8ZAbnDO05Qs69BVabg/8ZLd9x1fNTSA5pvBF4O4vmXSkm4vVGsYbit1SM6nZSLZSt1QrKixlKzMtNixYgZVZUgQMq1jRFjNW1HQPAy6m/wAXQla1KNqU37mZ4hWoy5P7GLQ8+6mpwMXSmHFixkLjp006a5F8IlsIckevHUvGQkeRVlRi+43dNPuNcNon6wB3RiK5Z4fgZOiu49azLRwDhMN7CejZ/bYK5/SpveceJwsasbSVn3M6wSAgOFxBAIOcFdGp824uLs+4QclhYkHKBY5W3tL2zqyd9VOJtVkDA7AlwWnBaGjFcbsQCo4pko83Wnsn/wCnhxyVGRF0jtbCsuGkp4qWnDtSiDg3DdhO6J5cbz3XFLWJSNrkLoqwgoL5WU1DsV2dSi8Y7zG4q5rYxVdWGYgAXZs3dQ1pUXPf3HkyyFxvcbyh3xgoqyDQHituqAxB1mRuN2yROACfEsKup4vSS634H1FYHnCQApIMy7jEEJOK05OotZ31N7xGqz0L0/WPiVAelR94F9Pg+whyPWg/RRfeukm4iUIbI4dylTaIU7Ew+9dEZqWhoppherE3JxyFpvCWuXhUcXdG2OUOyeTZCrY7YVFJbjdRVhb0JPQn9CuWvhY1HmtvOilUs7M2Go3VgqC4HRdEea91W8nXAi6JCpUOgiGDqkIsOQkUuqVvGgi2hRLIS1/eP/aVni4JUJ8n9jDEvqp8mOxD8mp/Ax/tC8iiurjyJwr6mHJHpxu2FMkdSkWKlixbBMWm8f7WFWkpIpKKZ1tg2qxzRE4hrgbmgn+IHYBXNGDirM8HpHCSUtpFXT1PZvVjyiQeqsWGXqCUiIcqmqRNs1ygnLci6a/uKrNowsAeosWsZppbz+gV0aRjZGWeYNBJ2P8ALlYvGF3Y8SR5JJOU40PQjGysQQsT0CdXKn8rZ7wFhVPD6T7T4H1BYnmAgBAZl3GQKSTitOTqLWd9Te8xqk9DSnqfDqF3So+9C+iwkmqEeR3xe5F5eunaItmFhKcxGYiSlyrZG9E7FbljJc66IVk90jSNTiWXrc1GHEYxlUllJrejRHUX4jiOfYKlJHTCtfc9TSybYKl0zsjU4k9VCpkL5haqpyXJzD1cqVSJ2hEzq2zIdVETUX3jJe1/7SubG07Yao/+r+xy4itenJe402K75PB4Jn7V4NCPVR5G+GfVR5I9Br1dxOi5e2XOsnDgXU+JMFVsXvcm2QhUcEwdFZOiIXCOa/FiEmU3Zjn7qxnRa3o8jFdGZnnpfL+Do2SAgEG8EAgjGCM6wZ47i07PUC5VLKJEPSxfKRlk2FVmtOPeDZFWxpYjLMhaMTM+VSaKJgrZr7h4ypR0Uod5jKk6LCQWJ6BerdT+Vs94Cwq6nhdJ9p8D6isTzAQAgMy7zMEJOK05OotZ3ab3mNUnoXhqfBaSqjDGAuAIaARevYw+JpRpRTktDrUlYsNZH17fKtfKqPiQzIiauPr2+VV8qpeJENhzYzrx5VKxlNfuRFxirj68eVXWMo+JEXDmuPr2+VT5XR8SFyTa2MfXb5VpDpCnH96LxqNFgrouvb5V1R6RwzXrpGyqRY+bYuvb5VZdIYbxonaR4lkdpRj67SO6tF0lhvaI2pYlR3N7i8WlB9ozyq3nHC+0R1rE0/EHPKD7RnlU+ccL7RDymn4kI2lD9o3yqfOOE9ovmQ8TT4kDaMX2jfKnnHCe0RjLERfeENbGXAB7SSHAC/8AlK58Zj8NLDzjGabaZhUqxcXvPTsh3SIfBM9S8/DLqY8kelh31UeRtbIc62yo6FIvjmzrKVLgaJlzXrFx4lky4PvWeWxqmAcrWLI6nQtaOE0wuPRN6Jm63ZHiPrXHiKWX0lozxuksPaSqrv3Pme25y57HCokS9CyiVSSY1mzaMdwmyKpZopmlxoaRjuKXyKGXUTDI683qyOmKsiF6ksCAs0CdW6n8rZ7wFhV1PB6T7T4H1FYnmAgEgMVRIWtLgL7i3EASbsIAm4YzcLz4l3PQqlvPFl0RsbI5hMYaDcHOLmE+I5FntGabNGPRGaS0KWWklqWRMlMZL2OaXAska8XA4srVDndWLKFmcWNK+yeyj95T8lZlx619k9lH7yn4kAa19k9lJN5T8SANa6yeykm8g4kAa11k9lJN5T8SANa6yeykm8p+JAZn6WNn4TgLSvZiwTdDhZMeFiz35EBrj0vbNAANXA4gXYRjZhHdNzhj3UBXPpc2c4XCtjZjJvYyMG7Hixk4sf6BAVQaWFnEuw7SubcMHBbCXE4778V12T9UBdrX2T2Uk3kHJQD1rrJ7KSbyn4kAa11k9lJN5T8SANa+yeykm8p+JAU1ml1ZkMUs0dovkkiillZGWw3Pc1hIbiF+MhAcjZTroYfBs9S+rwsb0Icke3QdqceRua+9bNWOhO5YCoLpkmlQ1c0TNEcqwlA0iyeEoSNEy2mqXMe17Tc5pBad3N3FLpqSsxJKcXGWjO7pqtssbZG5HC+7rTst8RXjzpuEnFnhTpOnNwfcDpf0VGWUSgyLJmyiGqXKpOW5SXqTSxTK9QaRiZy5SkaCvV0gO9LAu0CdW6n8rZ7wFz1tTwek+1+B9QWB5gIBIDOu8qRkja7E5ocMzgD61BJkfZNKctPAe7DHxJZE3ZA2HR7Vp+Bj4kyom7Fzhotq0/AR8SnKhdhziotq0/AR8SZVwF2HOKi2rT8BHxJlXAm7DnFRbVp+Aj4kyrgLsXOKi2rT8BHxJlXAneHOKi2rT8BHxJlXAkOcVFtWn4CPiTKuBIc4qLatPwEfEmVcAHOKi2rT8BHxJlXAkOcNFtWn4CPiU5VwAc4qLatPwEfEmVcCRc4qPatPwEfEmVcAWw6HaN3/ABae4ZTqEfkGJZzcYrQPcZdE9h0baGteylp2ObR1LmubDGHNIhdcQbsu6uTM2yl958Esw9Ji8Gz1L7HCdhDkj3KPZx5F966i9xicjdTZpllUaJirzjyKNg+5llWLWVbc93dVXQkaRrxNLJQchv7iwcGjpjNPQkSpSLXPc0MWhc4wuPQvybjwP6jF4guTG0bxzru+xhioZ45+9fY997l5DOWMSovWbNcpEyJYlRIOkSxZRM75FOU0SKy9aKJIYasogMNXVMWL9L1+FbVSe1jB6QFyYuGWVjwelO1+CPqq4zyxIAQGdd5AIAQkFIEhIIAQkEJsCEiQkFIBCQQAhIICcMWEcwGUqk5qKuG7GvcGIDIFwyk5O7M27nl6LPoFf+CqvYuULULU/NdnPIij7xvqX2uE7CHJHq05tRRqEuddKZqqnEMJaIte5ElXRFxXqxFxxyFpvBuRxUtSYzcXdHo09ThDdGULllSys76dVTXvLGylpDgbiCCDmIyFMiaszRysdnTVwljbIMpHRDM4ZQvmcRRdKo4f5YzjAHSrGxrlKzMFbKMpW+ZXVNk5Sp0isqYsQL1ooEkdVWsaYsUzVGx5eJdlKhbey1j0tLM32xU/lrPbheL0mrVfgfO9Ldr8F+T60vNPLBCAQGdd5IKQJCQQAhIIAQsJACkkEAISCEggEhJOKMuN2xsnMFWUlFXYNgAAuGQf5euGc3J3Zm3cFUqeXor+gV/4Kq9i5StSVqfmigPSo+8b6l9nhOwhyR6MH6KLr10lrivQi4CTOtI1LakqpxJYS2TTL3FepFycchBvCNXLwm4u6N7JAReFnlsd0ZqSubLPrjEf5DlH9QuXFYRVo+9afwaQlZ7z1TV5si8+OEtqdRDmpW8lQsHNKt5MiGkPVlDoFGQdOrxoEpFL6pdEcOWKdVW2zIbOh0q3X2vVflzfbhfMdMK1f4L8nzvSva/Bfk+vLyTygQAgM69AkSEggBCQQmwISJCQUgEJBACEggEhJONhcbh4zmCiUlFXYNjWgC4ZPWc64ZzcmZt3BUKghB5eiv6BX/gqr2LkWpK1PzLQu6VH3jfUvs8JJbCHJHoRl6KLr10XJuK9LkXIko2VbIh1yRm4vcVU2tC1r711QqKRtGaY71ctckx5GMIWjNxd0ao6gHcKWOuFZS3d5rhqSMWxsKJUb7zrp1bbmWGYnZVNmka5xasc6ZEMxIVGdRshmEZlZUy2Yjqmcq+QhzRB0+wPKp2fExlV4HU6UJvtWq/L2+3avkunV/uFyX5PC6Sd6nwPsi8Q80FIBSDMu4sCEggBCwIBKSQQAhIISCASEggJMYSbgobSV2SbGNAFw8ZzlcVSo5MylK41mVBCAQHlaK/oFf8Ag6r2LlK1JWp+YaM9Lj7xvqX1mGfUx5I609xaStrk3FhqNoyrkLDU7QjMF6vci4ImRcm2TOuiFfukaxq8SwFdKknvRsncd6m5KZbHNn8q1jI3p17bpGlr91WaTO6M7oeGVGUtmFhK2UjMIvU2KupYrdIpsYSqkDIUsZObO00lzfadV+AHt2r4z/UH/JX/AJX5POxjvI+1LwziBACEGZdxoCEghIkJBSAQkEAISCASEggJNaSbhlRtJbyTZGwNFw8Zz/2XDUqZn7jKUrjWZUEIBACA8rRX9ArvwdV7FylakrU/K0M7g1relm4AX4Z4l61PpBwgo5dDfMS5pd93vzxK/nN+H6jMLmh33e/PEo85Pw/Ui4tXd93vzxKPOL8P1IAVDvu9+eJSukpL9v1BLmp33e/PEredH4fqA5pd93vzxJ50l4fqBircPs9+eJWj0vOOkfqWUmtCXNzs0e/PEt/PsvAvmX2rDm52aPfniU+fpeBfP+idt7iTLReMgj7mGbvUrL/UE1+xfP8AovDEyjoW89n9bHwh4lb9RT9mvn/Rt5c/CLnq/rY+EPEn6hn7NfP+iPLXwEbTd1sfCHiT9RT9mvn/AEVeLfAibRfmj354lP6in7NfP+irxL4C5vfmj354lH6hn7NfP+ivlD4H0PSLkLrQqnHB+hXXNN+SZnGvHx+MeKqbRq26xz1p5t59wXCc4kIBCTOu40BCRISCkAhIISCASAEJBSSNoJNwylQ3YGyOMNG7sn+gXFVqZty0M5SJLIzBACAEByFrU1Y54EertDMIEtdJgv6IkOBBzXLVNGm48uR0zS6KWZ191z45JH42kZCHZQQp3E7iujsiF9+p0lNJg4jgwRm471LoXNgsQD/rYD/54+Sl0RdEhZA7GU/AR8hLoXRIWU3sXTcBHyEuhdD51t7F03AR8hLoXQxZjexVNwEfIS6F0NlmMBwudNKTcW3GCMi68HJgbiXQui7mNnYei83j5CXQug5kZ2HovN4+Ql0LohJQscC3nRRi8EXinjBx5jgJdDMivna3sVS8BHyEuhmQGzG9i6bgI+Ql0MyI8629i6bgI+Ql0MyEbKb2LpuAj5CXQzIibHb2Mp+Aj5CXQzIrdYTT/wBfAP8Azx8lLoZkYoI44y50IhgddguMWDE4i/IS0AkXhCdxrjp6x7Q9kk7mnI5r5SCm4j0TrbID8Al4e2/BADyS7E0Auu2Lzeqszla+43KCpmXcagpJBCQQAhIIBISCAFJIwNhCTZFHgj+Y5Tm3AuOrVzbloZTl3IksDMEAIBIAQAgC9ABKASAFJAIAQAgEgBAJACAEIBACkApAIBIQO8oSJACEAgP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxETEhUTERIWFRUVGBUXGBgYFRUWFxgVFxUWFhUZFRcYHSogGB0lIBUVIjEhJikrLi4uGCAzODMsNygtLisBCgoKDg0OGxAQGi8lICYtNi0yLy03LS03KzcrLS0tLS0tLS0tLS8rNS0tLy0tLy0tNS0rLS0tNS0yLS0tLTUtLf/AABEIAMoA+gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABAUDBgECBwj/xABBEAABAwEFBQUFBwIFBAMAAAABAAIRAwQFEiExQVFhcYEGEyKRoQcyQrHBUmJygpLR8BQjM1Oi4fE0c8LSJGOy/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAIDBAUB/8QAKxEBAAICAQQBAgQHAAAAAAAAAAECAxEhBBIxQVETYSKhsfAFFDJCcYHR/9oADAMBAAIRAxEAPwD3FERAREQEREBERAREQEREBERAXkHtVvcvtJpNqva2y0wYY4tJr1IIxZwAG4M9fEY2r1i3WplKm+rUMMptc9x3NaCT6BfPd+2rvADUMOqOdXqxme8qEkMncwHD5bl7ETPhZjp3Sk3Z2wvGk7DRtbqjRECp4wcv/sBd6hbTd/tWtLf+psjXgauplzPR0j1C8xq2k4SGeEaQPedz27vNbVXtjKAadIjCAJJIjC1o+Iq3srKc1pPh6TdvtOu6rGN76JP+Ywx+pst9VtVhvKhWGKjVZUG9j2u+RXzvSuepUcarmYcRJwNmBOsxqeWQUW0WN7H42ODWyM5LXN0GTgZ9U+jbSqazD6cRfP1k7XXlZhLbU5zWjSpFQQPx+LyK2G7fa/Xb/wBTZGvH2qTi0/pfI9VXNLR5hF7Ai0q7fajdtXJ9R1F26qwgfrbLfVbXYbyoVhio1WVBvY9rvkVESkREBERAREQEREBERAREQEREBERAREQEREBERBontevXu7I2g337S8Njb3bCHP8AM923868rstmp1HgOMUWkY3DV7tzdwV57SrY61W+phP8AasoFKdmKZqRxLjhj7ip7W7BSYNJPhHAanjntV2Om43tt6fFuk2nxH5rW9aNkpltZlHC8eBrG5yR7sAZYjiieE5KHQsji7va0GpsA92mNzd53uXe6qr3yXGQNOBzmPNTniMyruyO7SM6tO4bBcFKiKLnPPijL9l572qeXvNOkJLziMbGjfuz+Sun1nbyq21VBiDd/vctnrC1T23n8O0es6iv09fCK2lIa0gnIZ7CRAHPMhIjTJWraWh3A+hB+ir6zczzKttjiunH6bqZyzO0R9NpMuE/VdGWB7fEyWu2YZBA1ycDIUplXCHDCDIABOrYIMt4peFvnDgBAGZ3k7hGxQtixzWdw1xPHlOu3tlelHJloe8N+GoBVHUu8XkVs12+2KqIFoszH/epuLD+h8j1XnrLQ5ri4bdijVYOggbtYWb+UifsTfT3e7fafdtXJ9R1E7qrCB+pst9VtVhvGjWGKjVZUG9j2u+RXyu5SaNF7aZrtqNaQ8Mhr8NWSJxADPDx3qq/SXjxy9jJEvqlF872fttedkFP/AOXjD2B4a5za4AJIAefea7LSZWzXZ7ZqgytFma/eaT8J/Q+fms9qWr5hLcPYkWGxWkVKbKjdHtDhO4iQsyi9EREBERAREQEREBERAREQFX9oLzbZrNVruz7tjnAb3aNb1JA6qwWg+1O9GtFCg4+GTaKo3spECk2N7qjmR+Ao9iNzp5rebHihTbUc4VHux4ABjqVCZqVKu2STDWjaRP3Zb7rtVQNbVDWBoEGQTB1AhWl0Xa4vNprj+673W7KTNjR96NTxO8zcVSXHMk5AdBkApUyTXw2RMxWa+mpVK4oHumNnDhlx2yJOnMKzZTbUbipmY1G0fuOPyUTtXYSAKzQTGTxw2O+nkqm7bwLSHNMRyW7HFb1+5SaxPbfwsrSMIJ3KopsJdiOp157hwzHktiqYazCW+9HiaOGpbw+ShUrNnH81WjDXt8ud1+OYiI9JdhsznlrRt+ohVN50MFRwBkAn5rcrioBsvOjQT12esKG7B9hsakkA5bZnmVZa+7ahHp+lrixb1zLSXrra6OFxbia6IzaZBkTkVYVLA6TGk8dsRs4rLeFirVMLvCSGtYGtAaYaIHhA8R3nUlS9vJrLX3BYnhSajY1WFwU9K0dtIuMN1Kt6FyxuJjbx3KTdlhw5nUq/oWcYXv0bTbiO/ieJ4LdSmPp6xbJrc/Prbr4eiitd28/o0G9LMKcNAz2rN2Vuo2q10qIEhzhi/CM3eYEdVFvS1GpULjkNANw2L072G3LLqlqcNPAz5u9Y/SVy+vy1iJ7ffDn27bZJmvh6/Z6QY0NGgACyIi4iwREQEREBERAREQEREBERAXi98Vv6u2Wm0h0im4U6DRBJFIuaCJ0Bd3rgdc9mU+l9t72NlsVaq0w/Dgp/9yocDPImeQK8fsdsFKn3bCQMODI7IgzvU6RG+WvpcE5NzvWljYL8kw45bSRniyAAA4q/DVFoWFtEN8IBLQZgSZE5lTLPUOYB1yKglETvUhp5LSu0lx90TWoiG/E3QNO/gPly09EbUYKbmlsuJEHdvVZaGTkQpYsk1ttbbH3Q0CjaXU3CSWuHTPgry6yazuJOfXlosdqu59FxdRaHsyJpETA24OH3fJc3XbmiK1FgBGRE4Ri2gcpbrv2rq/XrNWS2OZnVp4htNrYGNwNOQEuI1J0gDbH84V9Syk+62GjfA2Zlx0/56qFRv3LFkXGZnISTnERlM5ZqDb7dVeMzLdfD7o6DIL2ImF00jUzM8R8JNatRZkXFxGxmk8XH6AhVlqvk5im0N4+87zOQ6AKBVeVGcVZWPljyZ41qkaY6hXeyFrXAuzJ90fWNvAKNXqxk0S7dsHNdbNUc0lxEE6mZcesZchAV0Ze3msblVh1S3dZt1joE66nQbuLirmlRYxhBeTOsGNm1ajYredGET0n1zK4ttSu/IGOeI+kQFOJi/N+Z886/cOlHV/h1Dt2iZRMtb4ycmj4sRyAnfK9u7E3QLLY6VIahoLuJOZPUknqvGewXZ51a8KYqHEKY7x3Agw3kZk/lX0EAuX/Es/1csREeIYrW7p3MOURFzngiIgIiICIiAiIgIiICIuHOAEkwBmTwQeU+2O9prULKDlTBrvH3nSykOg7w9QtAgnrkut73u612uvaBmKjyW7+7b4aeWzwhs8ZV12MoMq2qkx4kEu8wxxHyCtilo5mPW3Z6THrF+baKtGq1jXvGRhoz3DLLXYs1lK73iKgHd1REHI7I2LDZQcmjU8QB5le3pEeJU3rFb6idrSrVbhaAM9p3qK8LrTqLNaLSHOmAOSjFPa2LRpX2imtX7XHu2l1CQHOAIMSciQ4xtERyK2+2PaYLRGWec57StXtFM1HEuEzkAR7rTpyJkE83D4VLjXLL1Ou3TRrXb6jXNDsiM/1Z/XRbldNQVKOMS3KYncWtB6uMKBbbjpudDgQc4I5k578iPIrGyymj8Zw4gYjMke40cAZMb89i39Pm1GpMXU9sdsx8f6073i0Ne4DQE8uKrHOLvdmN+nl+6mPpOcZcOTdert59PmuC1Wf1f4c69o7pmIQwyBEAdVjerU3ZVNM1Q3wDIniquotGphResx5hHqLGbQ8aOcORK71Flu273V61Ok3Wo8MH/kegkqvNeK13Lyu98PY/Yxc5p2Y2h846xkE64Bk39/zL0VRrtsbaNJlNogMaAByCkrhzO521iIi8BERAREQEREBEXDnAZkwEHKKJVt7BpJ47Op+qxPtLzmCI3D/2QT3OAWu9vDaH2C0U7IwvqvZgAxBpwuIFSCSM8JdHGFO7wT8QcfM+eRXfviB4wI3j6j9pQfMtAupVXMqsNJ32XgtI89eeiuLrthZVY+l4TJiMuC9h7Udm7PbKZa9ocNZBhzTvB2FeU3p2CtlmOKyVO+aMwx8Nf0Puu/0rdTq9x25I4bsHVxT8N44b1QvQuL8bMqZidYJ4rHTpmp/htmNeq124/aDRYRQvCzOoPJGMkOwuAylzYxbTmJ5rb7be1ItDrLVpRWdAcCC2TAjHMNgb9FjiZm2qwonJzwrXuLXFrsiNV2FVRbwoOpEY3A4hiBBmZWSvScwNJ0cJWuKLK3n2x3k7+1UOzA7/APJVa/Ko4HY9jhyc4h3Sah9VbPsNR4w4TDgRnlqCM9oVRaq/9xuFhc8sGBugyeHy8/C3eeIGpC97Z0n2WtyxWg/3SQC4gQAN++dgGJ4JUarQg4nZu9ANzf32q1oWV1KSX4nPkudGEZmS0N2NB2KDas1ZWJ9qMtZrxLi5X1GV2OpUxUe0yGuEg8xuVZVMuJO0k5fRW9C1VO77uk0McCXYwSCdcnbDwVRXplpg6rRSs77phlvExWJ9Lel2mLLG+y92IJJB2yd6oLqtVOlVD6lEVgA7wEwCS0gE8teiyssj3iWtJzAy3nQKwNwup0xVe/LExhaw4qmJ2ZyGYETlthX67uJVza99b9Na/pXlheB4QWieJnQbVvvsbujvbQ6u4eGgMLf+47M9QI/UqntDQpU6FF7B3JdTOFsS50CXuqGNcwBtM5CNPWPZ1cxs1hptcPG8d4/fifnny06LD19qxEVh7SmpbOiIuYuEREBERARYLVbKdMTUeG8zmeQ1KpbX2nbpSYTxdkPLU+iDYVAt18UaQ8T5I2NBcesadVqtqvOtU955jcMh5DXqsDEF/Wv1zxNINAOhPikcIyHqo39QXH+4TOyTt+6dnoqoUM5YcJO7Q/iboeeR4rMyvh/xW5faGbOv2OuXEoLmm5w+8OgP7H0WRjgZwSDt2DqDrzjqoVIGJa4AbpnLgTp6hZ2PacoM7CSf9L/2z4IJDiB/iDF6ifw7P5mgYR4gQRxOIdH7PVdAXMGw8zB8/iPkuBhJxYoduiD+k5n1QdKjwc3HCdN08A74uW3coldpOrZG+AD5f8Ka97jOIeHeBmeYzIHLPkotRgI/tkxzOHz1HTJBQ3tdFCu0sq02vG5wEjiNrea0C9/ZzgJdY6pYfsPJc3kHjMdZXqdoAGRaG8Z8M8CNvOFFrMLdSDw29I19ea9iZidwPGLyvO3UGNo2ljqYZk18SCNgFQZdMirG5O1VUmmx57wY2ZuzOEe8Dv8A+V6RaLM14LXNyPwuAM8I0K0y+OwNB0uoE0HfdzZPFmzoQtNOrtEatz+/lKL2ifKvt/bq0mu59JwayYawgHwzliJzlbT2YvWytcaVSpjqvDQ95GRjRgJ0a35yV5xabptVkeH1aPesaZxMlzeGIajqIUAW/ES4H3iTlxKunJiv9l1M8xzL1++n0feokET4sLgYkmDHwjYo93kU3l7HB8tI0yaHDMHedi1bsnfVIQ2q7x5huIZOG5x4yRmt9s/hbSgsDR4TLQRlEAb58UngddumIjiIjbXktTJEWxxz+iis1mHf4XQ3xDIGYECJnbmVX39YS17nd4x0uOEDWJy9IVve1lYXuNMkO3zqd0HQblzYLobTpmpV8VV+uKDhbsaBoN5PGOd/bbcR8smWJvWMetff01+xVCQJECnkILh4tQTByIMEcQpPcuquNQVTTqA4sUkzlhJjY6DqsjrFUtFobToiHVBBHFpBn18lmve4rRRc5kQQQwHe5xEBvTPoN4XuS1aW+n7ZcfbET38/vhX3BdBtV40aLqhqgEPe4kmKdOCAZ4wI4r6BaIyC879k1ytZ/UWgZgu7ljvtNpGKj/zPxRwAXoq4nUZO/JMw9rGhERUvRERBwSqLtHXrADuqga2MwMnTwcfpCvHBVt42HGEGjucZJdM7Z16yuzSpFuu2pTOXiG4/Q7PkolN4OW3cdf8AfogztKytKwNWRqCSxylUioVMqVTKDK2xiZpnAdYiWE8WbDxEHis39SRlVAYNMXvMP5iPDycORKUnKZTcg4ZTjNvrJ8jqPlwXDiD7/h9PJ/7QVx/RRnSdg+7E0z+X4fyxyK6utEeGs3BOWebHcA/ToYPBAM6Alzf0+Ttv8zWJ+E5NGF2/3SOnxeUKQ9rh7pjgc/I7PUcFHeW/EDiOk5mfunQdCOiDBUlmZGLiPePQnPoeijd0DJaQ3eAMp+9/ApXduGYE8CZd+r6eqjuAec4BGz4hG87uWXFBDq5+9mN4Bw/v9FFeJ93McdOh1+isKrnDIeLedo57D5jkodRrcziIcdd/Vv8AsggVwNojjsWtXz2Vs1aXFmB5+NnhdPEaO6hbU5hGbmk8dT+nZyHoojqc5iAPP/jog8xvDsxaqObIrN4ZP6tOvQq2uvtmMHdV8TXtIzI2jSRqCtwq7j6fVVl6XLQrD+4wO3HRw5OGavw9RfFO6pVvNfDA614yHBwgnUGRGh04Kwt1scWwZjZyWm2vstXokustUkfYcYPnoeoCn2vtRXFJjLXZAzAIFSnGEiMhUAJAPGRtyXSx/wASi14m0aRte2tLy6ra+jUbVpOAqbSfgpjM65S7wjlzWbtT2kq2l4az3jhZTj/MfDZy4mei1Gz201Q4McD8bjMCd3RbR7LLrNe3948S2zjGeNR2TPIYipX6msd2b+6Y1H23/wAhTitaJ29luC7G2az0qDNKbGt6gZnzVguAVyuIuEREBERAXBC5RBGr2YO1C129bgBzA6hbWujmIPOKtOpTMPBI3jXqNvz5rvTeCJBkfz+Qt1tt3NeNFq143G5hLmZH0PMbUGFhUljlVi0lpioMJ37P9uvmplN+5BY03qXSeqqm9SqdRBbU3rNIIggEHIg5gjiFXUqiktqIMT7AW/4LsI+w6Sz8u1nSQPsqLUtUHBUYWuOQDowu/C/R3L3uCssa6VgHAtcAQdQRIPMFBWvpO+1l9nOPPX6cFgdUa4YcM7gcm/ldoek9Flr2Itzpukf5byS38rsyOuIbgFhdag44C3C47Hxn+HUP6dYQdHMc0ZEGNhygcDn6+aiOwuzJzE/dgbYjUcZIUt1A78XA6dN3WVgrVA44CBORh0dCN/RBCqBx0kjfkD0Oh8hzUWq1mgnFwkO6/uclPqMcBkZ5/Q/v5qM5oOszxyI/DHzCCHgcB7s8tes5ErE2liJMgcBv+9I+gUupTdvkbtD5/wA5rHgacogjoen+yCJWpH4v4FidZ2uGWasaFhfUdDBj55BvEnT67pU2nSoU3af1FUfC3Kk0/ed8XryCDTbV2BFdj6tBhpua1zsTcmkgExh0JOmXmt79ld0vs1kHeiK1RxfUnXc0dAB1ld7luJ+ZMgOdjcAXHE7IS9ziS8wABJyAAEDJblZbKGgIM9MrMF1a1d0BERAREQEREBERBwQsVWiDqFmRBr95XK1wOS1a1XbVpGWabtn+y9HLVFtNja7UINCstvBOF3hduO3kVYses97dnwdAqEmtQMEF7fUcig2GlUUllRU9jtjXiWnmNo5hTW1UE8PXBeogqoaqDO56jWhjXCHAOG4iVw6qsTqiCNUpPb7ji5v2XHP8tTXznmFhY9ployOpp1MjxIOc8/EOSlOeo9oY1whwBGuew7CNx4oMck+6DH3v/E5k+o4hY3QcnCOBHy2HouZqN08Y3E+McnfF1811tNoYMnZk/AILuuxqDGKbphkuO7b57BzXL202mH/3Hf5bNh++/Z09Vls9lrVcgO7ZuaTJ/E7UrYrr7PtYBkgpaNhr14a7wU9lNmTY47/lwWxXbcbGAZK2o2cNGQWcNQY6dEBZQFyiAiIgIiICIiAiIgIiICIiAuCFyiDG9kqtt11tcNFbLghB5/eVxOacTJaRoRkVEo3i5hw1hH3wMvzAadPIL0StQB1Co7yuQO2IKplUESDIOhGYPIrnGquvd9WiSaem1pzaen1C72e3B2R8Ltx2/hO35oJ5esbnrGXLDaLS1nvHPdqfJBnJUe0WtjNTnuGZUdhrVsmDA3/UVc3X2dAzIk7ygqaVOtVyAwN4e8euxX11dnQ3MhX9ku9rdinNYgjWaxtboFKDVzC5QEREBERAREQEREBERAREQEREBERAREQEREBdHNXdEEC1WFrti1y87gB2LcYXV1MFB56bvrgYQdvvfEBuB3KTd/ZzOXZnitzNkCyspAaIK2x3W1uxWTKYC7wuUHAC5REBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXFxoWFRcYGRgYGhkXGBUWFxcVGhcaHSggGBolHRcYITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIAMIBAwMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAACBQEGB//EAEoQAAEDAgMEBwYDBAYIBwEAAAEAAhEDIQQSMUFRYXEFIoGRobHwBhMyUsHRQmLhcpKi8RQjgrLC0hVDRFOTxNPjFjNzg6PD1Af/xAAaAQADAQEBAQAAAAAAAAAAAAAAAQIDBAUG/8QALBEAAgIBAwQBAwIHAAAAAAAAAAECEQMSITEEE0FRBTJCgSJxFFJhkaGx0f/aAAwDAQACEQMRAD8A8P7O4J9HP7wCHQRBm+3yWicSBoCe77pv3HBXa0D/AFYUuKfhmynW1iT8cTYU5jj+iLRbXd+FrR63pl2KIFmgIH9Nc7Uqe2/CH3F7J/o/3jgKgbUi4BkAfuxK817T0mUamak3I1ws2S4AyWuLSbxewMxK9VUdlaY1K8v7WUy51EC/xeGX7okvDM5U1YlhsU5hJiQbObvbuG47Qd4TfS2ID/dwZDWBkxx2jYUtWoFtjrAP3Sz3FjuseoRw1t4rkSUnaMNI5iMM5xY8R/Vtg78uaBO/K53dyW/0lhg3CsaBYsJ0Bu4Fx14lMdE9HEU3Z4GZpaAY0IjMewi3Dkje0YBpxsFtJ2RotoXVs3xxdWzw9BvVqdX5To3eRv4rR6F6GOIzAEMygE5mtMzPyg7tu9ZuFZZwy6t2MAuHN39qYo0yBtE62YFsMpiaPu3lp1Y8CeoNHgTbrL1hfc9hXlcQ1oaeve0Cad7jc2fFeiDr9gT8CRuschV3WXaeiHXK6bMaM2vUulziCEXElZ9R6xkbRG/6cUSvjTblHd/NZJqJh9Sze3zUaSrNGnil19aVmCoiselpHY8160+j6nWHJYzHLQwdTrNVR2kiZcGe5ksIA0e+erOrp1yFJmgflP7n/ZR6jb1OrP8AWHRpd+Fp2UX/AES7aJ+Q/wDDP/5QpezA4aH5f4B/0VBR/KP3W/8ARRBR/L/B/wBkLvu+EdgH+EIEWxVIdSWg9QbI1k/hpoT6DPk7n1h5JjGNbmAPytGoH4R+cJJ7KW//AOX74hCBmt7J4cf0unAIjMSC6o4fA6LP4wvb4hi8h7BtYcS7LeKTj8QcJzNA0qPjU7l7KsFnLkuPAi5qiu5t1FNlHlR0uut6RleZbXRade4EgSYkzA4mLwu/Ucmk3qmKlCo1LhZPSGKbRe5js7i0xYNAO4glxsRfTalmdORcUj21PswJa0PSz1WPdYJPH4R9Q0ywAloeSNpE07DvWDW9o6p/BT4Wf/nS7vaTETao1uo6rW6GJEkE7B3LDItVo0XFM26jSSYaXPLjYAkgN0sLi5VKPRE1GCqx7WPOaCLNy3IkiwNh2wsJ+OxVS5qV3ci+O4WQj0ZXdcscf2iP8RWeHopfbb/ZCcox5Po9bpGi09arTbwL2jwlZXSnTeHLcoxGU72AuPg0heSZ0DV25BzJ+gRmdAuBk1AOTZ8yu2Px+aX2v/RL6qC8jdTpim3SvVf/AO1TP95oQD7QEadb9qlQHiGldb0Eza5x7h9EUdE0h+GeZP3XRH4rM+aX5/4Q+riLYj2jc5hYadOCI0A/utCX/wDEFY/CGgxFmk+ZK1hg6Y0Y3uChYuiPxEvMv8Gb6pejL/0ri3fjqdgDfEALf9nukXuYadQkvbcFxklpO+bkHwISRalyS0h41aZ5jaO0fRLJ8dpi2m2xrNbRt4mosvEuRn15ggyDcdqUqvleUzpKGoj1qunrakS64RKz9OQSAZ96jUqyQa5HpFNILNBtVP4KtcLKYU1hX3CPI7G6eBZUfVzOIhwNqXvNRt/qakacFHdC0fmHbQj/AJFXwnTdPDVKpql4D8kZRNwHzN+K0P8AxlhP968djj/dlcuSc1J0jWEItbszWdE0h/raXaAP+UCucDSH+voD+2B/9bVpN9r8If8AaCObKv8AlRm+0uFP+0s7beYUd6f8rL7cfZk1qLHEkYih/wAZg2f+oEF+BnSvT7Kw+mLC3/8ATeFP+0UO11P6hdGNwztKmHd20ijvv0LtL2V9isKW1Kxc4O/q2RDi7Vz5ua1T5RtC9DWISPQ4pAPymmJI+EtExO7mnThwdEd1Pdj7bQs+JUV34S+1RPuRFoZ8flVc5VJVXFdpymjUpNrsY9xINMinVIichn3b77j1TyWlW9m6DMsPdUBE6wQdrSG6FYPRuLFOp1703AsqD8jtT2WPYvW4Bsh1N7uvT6smOsIljp4iO2dy7OijCUtMkY53JK0JM6MoN0pNPPrf3pWxgBTiGsa2NgAHkkiFGEgyF6/8NBqkkji70r3NDpKiSw5YnZOnbwWVTdOyCLOadQd36rcwVYVGlh1WHVpkOjR7bCfxNn4SfI7DwR08pY5OLHkSkrRCFRzUZpBEj9QdCDuIK4QvS0p7o5dVci5aqlqYLVUhUoBrFnNVHNTLghkJ6B6wD2IBpzZOVArNpQPXr7c4C5M1cI3jIyiMhy7NW/Ud9+1L1H6rUxuGkW1Fxz3cJ7+SxXPuvmurw9vJtwz0cU9UToOitWNxyCBnVqj7rlNAzXJik5ItejsqpoDSa5Ew9S6zBWTGHq3QxoJ7T0XOy5RJ17pH1WB/RKnyFek6TqzkPAjyKTbiGbXjud9lEnuawSaMU0H/ACO7iqOpuH4SOwr1NBgcJa9pHCbc9yKKDtkHkfuptjqL8njZUsvXPkGHAg7iFUtadWg9gRqDtr2eVEKwMaL0xw1L5GdwVDgaJ/APEeSNQ+3+xgDFv+d37x+6i3P9GUfk/id91EakLtv+hn5lVxVhhavyOUdg6vyHvb91sc4F69D0RjZpteTenFGrxpOP9U8/snq8pWEcFU+XxH3TfRFN9OqC4AscCyoJ1Y6xtw17E4zcJKS8A46lR66rTiLzaTwJ2IcKmEc4NdTd1n0jlJ+Zv4H9rfEFGLV9JhzRyK0eTPG47M4wkGRYqYx2czo47eIsew2sugKuIZLeV10SqrM1YFrtvY8bjoHeQPCDsKI5qC4wQ4iQeq7cQbAnjs4zwR2GLE3sBO0Gcp52I5tKMU0tgmr3BwuEItVzRqQCdBtPIalDL/yv/cf9lu8sVyzNRb4QNzUM2V3V2/mB3Frh5hEw2HLusdNgUZeqjFbPcuGNt7g6VLb69euKLk9etPXwpr3fr16uVVzez1v38Vw67N9NCdSn63eUeHMrzPTmGyOzDQ3++wc+0r1lRvrT7eBCQ6Qw+ZpEcRbbx0kcydq5+pxdyFeTXFPTI8b75ddVutqg1vygd3dp6hNvaNy8JnopHmm1Cisz7GuPYVuGUek5AUYDadT/AHb/AN0puhRqk/8AluWySmMGLzuQgowsaKkZYIeOXbthJNpVtzfD6LTxLpe48UNRJ7lK0D6LfUZWY7KzWHbi3aDwXq8Lj6B+KkztcfoF5oLoKLGaXTWKpuIFIEAbySOybwkqTCTE+CECm8F8QSGjVp+zxcARVHGWm3K91yt7OVB8NRjuYLfut3Dv6oV/eIKPIu6Nrgx7p3ZBHfKi9cXqIA8oSqPXZVSV0Wc9Cz6a7TkaK73cuxdbUI/CfXYs5FxG6deAyr8kU6v/AKbj1H/2XeBK13NWLQqQesw5SMr5OrTr4eS0ujXGDScZdTOWfmYRNN/aPEFel8bnq8b/AAcnV4/uQaFYNmyhCuxe1FnntABSBaQdtjwO1YOOrE1abZgtgEjY5zrxxsF6Ko2CeN/v64rzDW+8rWMS834Cb9wXLJOL2NYNPk2RWAkU28zJ/idcnxK7J3tncJP2lEyZQGtEAWARGUIudfJb47exlKS8DGF6M0dVPJusc+KO+NgWe4KhJ3lD6Vt3qKWavA6Y3oFUxqO0EX7Cl8x3qCq4aGE/4Sa4aDvLyiE7vt5OQHt4Dw/ylEeWOs5oB+ZoHiDr2QlMS2q0S0Mqs25cwPa2ZHioknDaaKVS+liGJYG1JGjv7w7BqB4cUV5QX4htRpgREX+UzZ0zEA6nZtV8JWD2h3YQN+0LwuthGM7i9mej08m40/BHiFemrELoauRGzOpikYaSlyESo6GKgMpxuVxcK6sxnVFxRIZ0Ep/o/UJALT6OF0Aj0tF1lZzlSibLpKCi0qKsqIA8vnXCUIv9fquPNpkHgLnyWxkXJRGnchUmA/FmbzjymfBdzwbSTpsA/i+2xJgmN0wdneiitly1fk6lTjScbO/sO8CUs0jLLnQdgHWnvaB4rtDEODhmEsPVcDF2mxEBx3+SIycJKS8BJKSpm+4KzEl0Y4gOpOMmnAB+amb03d1ubU81fRYcqnFSR5U4OLpgek35aZdu+qweh6Y94Dw+wC1enbtay9zJjcB9z4JboKjFRx1AbbnMfdaS3kTwjYDNp18kN4R3Khat4qjNoXIVHNR6sAS4gAakmB3rK6R6ZZTaCAX5s2UizSWmHdY7juBTnmhj3k6BY5S4Q0WpbE4llP43Bu7eeQ1K81jfaGq+wOQbma/vG/dCz318oPzu1OpaOfzHwHO3n5flox2grOmHRt/Uzbx3T4EhjZO91vAXPgsav0pUdMu1tGgFxoOzbKSTuE6LqP0bA3m3cNSvLzdZmzbN/g6oYYQ4QrVqud8Tie1afQFYhxbBLTt2B36/Za/RnQFBt67nn8rWi/aTbtB7FpF1OQKNHIBpLnPPO5gdi5lFt00a6kt0KGF1qdDBcvJjcIvwk6dxQ6r27GQLXJPbaZJ2a77J9uh67FXlVru6qY92CC6CGjUzEHkQTHGdyBiMPazhvuIjnEqXFlKSMoldBR34F82AM6Q4DXSxg+CFUpObdzXN4kEeahplWcBXZVWlXCQHWerrU6PF1msC1cAkxo26WiuUGm5XzIKLyoqhy4gDySt7w7/v37FWVA7j4BamRHidgVmt9R+pUbGvrwRG1B+aBfUhMRZjTun7907UVlIk3BE9mqHSqt3k7tdOcc13KwX+3lBlIBptXKG1LzS6tTeaLjr/AGTfkt1oXnqFVjHSbi4dAnM06iAJ/knMFjRRa6k4y6nantL6ZE0yALugAgx8vFdvR5dL0s588L/UgfStWah4QPqfEo/QY+M/s/VM0uhmwales0N+I5SNDeS91ht2FLV/afCYcFuHZ7w7xMTxqO/wiF6EuojDds51icuDZp4dx2QN5svL9Ie0hY7LAbBGYAhz4nrN+VjxxDhKzOkvanE1pGf3bdzLHtdr3QsJx79SuPL8hJ7QN4dMl9Ro4/pl9QQBsIcXHMXAvzNsbNIgCWwsqq4kyTJ2k96Ph6D6hhjS7l9ToFuYD2Uc69R3Y36uP0XA3Obtm/6YmJgq8BzMgfnEC0kOyuAIG/rJzB+z9V/xdXhq79O1ewwvRlKkIaB2bebtSimTZotwVrH7Ic/Rj4PoalTvEnebn7DsTn7I9c0w+m1vxm/yjXkBtPD7KlSsbQMjTYEg5pmDEW/VaKlwTTfIE4eLvcB59g2rnvoAyiBtLokE8J8+Ft/ACRu2e8dmNtvIbY4qRcgQXT8RNovoHBSykkiExDtwu98OkbgIsNe26pSAnQEbHOkDZsB04BQi5IGYzBkiLcjsO6TdQxf8UXykSBqJgHLPOfokUWY/Mc3xuGr3SWxw8edlQPEDrF+sX0O0AEHiLSddFV7InPeL5YIBtN9p5BEbTcRF2tIvvO4aWAQBR9QgiD1rdVksI11tEd+up0RKVODm0jQNOXZtIF/JXawCwC4UrA7UoU3GXN56TxvCNiujMG/KKPvaZPxGs9pYO1rS4zy/QEqApbFExPQbWyW12uAMaEZratjUcfJcw1Ajd65ojQrve1ozOIaN5tyHNY6Ku2VFtDLCiSl6NQESNN+9GsszYtmXVWfUKIA8s9oAuW9/0hKnEDcPXNEnZEeuS7Oz6ytTEFTrzMU8x4X8gmabIY4upjNbKwQ4mdSQBIGmvFcp5jvj1fWyKxhjSANpgdwMd6YijKbQwuewFxtkptaSD+YwcnIIOHa+RLKbGnUmSQN+VrgT3JumzceQJOz8rUWnSzS4/wAMd8iDpZAHH0qJb1XOL+D6jduwGYtsS2IZUNAP6zatAmHSQ40nfmG1vlzT9WkwamRpfTfYQZ/Vcw1YNdoA0/E0RBabEX4ShgeWfVc4APc5waIaCSQ0bgDoFWVs0PZxz3vDajcjXQCDmcRs6o7rxovR9F+zNBjm+8a5wF3Q4NebWE5Tk7IPFPS2rFqSdHjcJ0fVquDWMcSdAASTxDQCSOIEcV6bD+xZpuiu12Yah4LAOzUjwXu29NsotLMHQZQG19nVHcS47ecrKqPfUOZznOJ2uJJRjUruSFJrwJ0cKxggAW0EQO4K5l2iJUcxvxGSdALk62AEkm2glL4mtUy3aabL3El1thuI2aZo3BbWTpO1GsZ8Z46E+QKWxGKdls0ME3uC6NQDcROu3lquZCCXMa6NC51PMdIA1zR4boQxkYWkZXGZMtgAnYTaOVzzTAo5jjmygkbXObJJI4nn321hUGUEEDN+02BcX26chzRqlMAjMGuB/CxwHZGm0ST3BVIcGkkuaw7A4bNcxn67J5AgLmNBuWv2mCRFraiG353V4IDM7padGtcN+keNx2K/vCCckhpEXg7NgjxPigZgDABc7cNb793qAkMs6mTM2G62zfAgdi5Rl8hgEa5otPP7eKZo9HF16pn8o07Tt9aJp7wLN/RJsaVircKG9ZxzO3nVXD2HXMDyDhz1EeKjmk6qrqaTTZaSRb+jg/C9ru3L4PgnsQq2Gc34mkcwR5qrmK9Gq9tmOcOANu0aFRTHSA5FBTTb3F2uXsaG+QErK6X6YZQOQDNU+XY39rj+Xv3EbrkVBMfjWUG5n6n4WjV32HHzXmqtapiHgu2fCwaNHLfx711uWo7O4Pe4mSS9vd8OnJbmCaxujDO2XT9As2ykrGeh8L7ttzJPgtDMlW1B8ojm77q/vB8o8/NZmofMohh3AfuhRAHmZ7F0PGnq+z1KcdjH/lHJrR4KNxtX/eO/ed9IWpiBax1rE9nhxTIw9Xaxx4hp89qq3EVNS5x7+6QFCTqb8T/IpiOvw7zsg8bEeBIVHsI20xsu8eThcrrWhw2nnEfoiMbHwgntt3iLSgYMgkXcOYvt4D7papuztn9l/bs1T1KgJJjbO106rr8PEgzsiYP8Oo1CVMBLo/EClWZUJJDJnLO4iSDqNvYvXYf2gpvbMZtf/L6xDR+It38BdFwvsoHM/rBBezqtFg2RqQLz6uvL9LexNWj1hLAL5pkfvC4PAqYz3/TIco7bo9hQxFF7S6mTUI2AQZ3FpuClauLzHLPuuZbmJg6CC3cdTyGq8SzpPG4e7iXNtd3WEc9du1a+C9tabhFen2i/Zv8AJW8kvK/sJRj4ZtUG5g6GtfMS8lzgYvmJIkiTNpA3hDyBroc33hiQA/j8UOPVOwa80XDVqNW9GvE6tzbd19DyvxVslSkCAxs65xm7TFzPEmTvC0jOL4JkmuRdsCQ9zmt1gEkaW6xiT296H70gZc2VtgCWAGOf4eUDbZT3zPmc6odGxBA2kN1AvExpqVZ2GeRmItPwgwf3tp0sIHErQzspSHXy0g189UdU33DSS6TpG1CqYfJmbUDmObsyRlNvwmw8TfiiveXEZGuzb5gC+trHxGt0yzo4NOZ8ucb3vE30474E6pgIUMK+ptyt3xBI4GeegC0aGHbTENHM7TzKMSuZlLGgL3k8kNMGFUsCg0TQIqpRTTUFOUWPYXDJRGUt3rjwCLXqNY0ueQ1rdSdB9zwFyvE9O+0Dq0spyylt+Z/7UaD8vfKmUvCEO9N+0UTTw5l2jqo2bxT/AM/dvPn8LSvN53+irYejbh2fWE63lHh9IWYwlERpbsWjRf2rObUG8efkSmqT/wBrunzUstGix/BEL7jRJsretPqjUiTP3LvKVJVjTZ4d/wCiiD7k7/4T9SogZlMbbjrG2OXrRXyZrRfkfWiCKFSJc4MGyTH91VIpbXPfyEDxutjEZMCM0cJIBF+0hW9+zTMDOsBx8tearRoiLUrbHVDbu3ctylSpFjVt8tIQOU2nxTEMtMCcrv3YEc3RJXW1rzDbbjTbz0Oqz3OZM5CSdr3HS+gER3ojcURYNYNI6gd/fkosZoDG5b9UnS9STy6oWt7N4MVHio5oDWmR8Rkg/mAssLBuqVCOsYmLWMdi9p0aC1obrG/z9b1GSVLYqEbe5vMqBzpNwYtP6c0/7s5d06agxvuALrIwtYzbhzjfwt5LRPWk53EC1ySNBtK82fJ0s890t0LRdMsDHXmLDTWAY7BC8V0v7J3tH9gQe3O9fSsbTABgCYtv0759cF5npEawdNvhHH+S6MOV8Ezxxas+bVuia1My0OkG0A5v4ZjvTeA9p8VQOUuJA/C/XjroeN16xnSbW2eXGd92/fakOlqNDEDK2qKcXgtsSfzWPh3rrqMkcruLL4f2vw1URXplhtJbcTPjFjJWtRp0KgLm4kOpAS4EwQNuYm8c7cF4nF+y9RnWz0y3YZdHflhZTqT6ZkW3FpBHeFSco8E7M+v08MGNho7fsPqZ14Sl3tO1eB6N9scVSgFwqN3PGzcHC4XqejvbXDVIFUOou3/E3vFx3K1l9oWj0PlVIWizDtqtz0nNqN3sId5XCVqYchVafAuBdXapkKuxiTGjoalek+kKdBmeoYn4Wj4nkbGjdvOg8Et0906zDDLZ9Ujqs2Dc58aD8up4ar5/jMXUrPL6ji5xt2bABoBwCycr4L4GOmOl6mIdLrNHwMGjfud5PlZBw9Ei5bykItDDRciTylF9fiUjKBxOro8ldtIfOFGu9X+6uD6v90DGKEN0gniQPBMGoXCIaN5BH3SzD6/mjNi1vEeakpD+Dcxl5Pe0f4oKYZjBJNjwlv3KzwIjX12o8QNoB2AhKirOvoU51d/Cou+6HzN7RdRAGT76mTenzhx+qI1tOxZULHfmBt2gI2bTdvzOvfdPqUVjJizT2NJjfotTILhcTUGjmVBu0PkIVKtMVDOR7Z1AyuFuJIVfcN0ygf2R2xbzRGUGwQad5jYLeimAM4JgH4idxNNnbJcdivRwzNA1v/E88gRmYQbKbXdgnlpc9q18HhYE5WjlxunQinR2Ha3QNngXnzlbNI3gD190Cm0t1V2n6LLIjWDN3o+qJBubzoDe8i/OVo1GiJySTs6sHmJ4eCxMLU7oi9vFPitI1Am2k87i3GF504uzoasFjm7QCIB2dw11WBjqgA1AvNzt27NLLW6Qr7I3/ePXHcvO4/FQdfv68F0YINk5JJIxsbWB2A8QaWzgWApUtB0aSZP+qYTGtsrwtA1Z2H6a8SBzVS8TJGWIIuNY1u7S87V3qNHG5WL4XEPZ8II3tyHTj/WwiVqNGqDnpEOiQ5rY7wHFc6pABBNtbRbQ79wRGOERBOlpPhzjf2JMOTNxPsvLQ6nfbDRJmNDLx4LDxfRVWn8TDGyYnuBK9tSDr9ZzdTmgi+4HLfTwTVDFZwM4zW2wdvj2qHJFKJ83wuJqUnZqbnMcNrSWnwXq+jf/AOg12w3EU2Yhu89Sp++3XtCdxfs9QqiW9QmdSY84P6rzuP8AZutTEgZm7CBPlw2pJoTTPdYP2iwNcdWt7l8E5K4jTdUbLTwmFh+0PtU2nNPDuD37agu1s/J8zuOg4nTxD6ZBgiCi4XDF5gD9FTbfIltwUaxz3bXOJkk3JJ1JP1WhRw2Tn2/ZN0MMKYI27beo5KrnTuHcPQU2WkBv+sFcI9QVd5G8eu1UcQgCsHh2qwb69FTKujv8EAGDIRAqZidh43/VWYPD1uSGHpngbX5+NkSm4DcJvJQA0HWARoNqKa2w5v4vukMLJN4B7W/USoqNda0x/ZUQMqysd3lt5q7alzeLXBB8YshikRrEHST6CJ7sgT48u1aIzCsc+IGXuI4jkjYdx0PhHPSUCjRJvYDYCbxfiJTLKRuQGnZ/IHaqENYVhgXPAaDU2WnhRxnu81nYai4GbTwAA9dy1qOgSGdcAo03UKrmg7u5RIuJoYd0bef1+iJVrwNeB+qzPfx9YjyCRxeNnfpsubcM3qVisTkzZ5UkF6Rx4bt++mlyLrFr4hpNnAzpeCb7kUOLrdUjZYjbYiNSuhjgDc6wAZIjgAB9V1wgoo5Jz1MHUZESwgb8oJ/TuQ6bbaOM23beIRzQk/FEfKRINt8796s6iAdL3nXvJEBUyEAadREHYA7WBut9FY0y2+UXt1jINtARrpPYruY1oLRpqZk+BOu5FbVbMtO60mZjZAN1DLRxmGkdZo0+INkdp+l1b+jHLYQLZYDQDO8QCV1pN7W5HSdJ0+5RXMkAj4twDTI7PPgsZGyO0wWmzwCTfLBmfJWzOEzJGznfX1sUa9xbOYRpc2ED4REj+arUGpE20vIPZHmO5Zl0J4zBUqod1SD9ddo4FZzMMxoytDb7ZEnXd+ifqxrPaLWka28UtiDsF+PDmFSbIpCZaBu4W+seoQHet+xM1D277pYkn0QVYgZJ+/qVVz+fl5Lridq4ADb6pkg+dkQsPrfqNFyP5QVJ9W+6ALUyRoSJ5q4t/JDafX6wiMnYI4z90hhWGdLj1vsrMMfl5yPqhG+sdo/VGokR8RHLQd4SGEa52wNPGfuFF0VG7f8AEokMZJt/ZJ7bXVqZtP5h5hcUWqIYsKrg4w4jXQnctSi89S5vrxgEhdUTYhjD/EOXryWk313KKJDOsKG5dUUsaFHic07z9FmMPxcBbhZuiii1gZzFqdV2X4jqBqdN3JMUtfW4Lqishlce4ikIJGvnCORMTe41vtCiiGBWhZ0CwvbsRMY4hroPqAuqKGXEphnkgySb/QKwaCwuIk7zrs2qKLGRqg7PIGO+EJzjlbfYFxRZM0ONaMvZ9UrjBBtv+6iiEJi2LEaW9BZ7TJuootEQVqbVKNyuKJiDVmgbAlnFdUTEWfr63K4F1FEhjDGjd+Iea5U+I81FEhlKVV0C571FFEAf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEA8QDxAWFRAVFQ8VDxAPEBUPDw8PFRUWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8/ODMsNygtLisBCgoKDg0OGxAQGy0dHR0rMCstLSstLS0rLS0tLS0tKy0rLSstLS0rLSstKys3LS0rLS0vLystLSsrKy03Li0tK//AABEIALcBEwMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAABAAIDBAUGB//EAEQQAAIBAgMEBwQHAwwDAQAAAAECAAMRBCExBRJBUQYiYXGBkbETMqHBB0JScrLR8BQjkhUzNENic4KDotLh8WOjwiT/xAAaAQEBAQEBAQEAAAAAAAAAAAAAAQIDBAUG/8QAKhEAAgIBAwQBBAEFAAAAAAAAAAECEQMEITESE0FRMgVhgaFxIkKRsfH/2gAMAwEAAhEDEQA/AOpEcI0QidjkPEIjRHwBQiKZW1+kOHwjIlYtvMCw3ELWW9rnxv5Sg14phUel+Ab+vt9+nUX/AOZeo7awr+5iaRPL2qA+RMWDQEcJHTYMLqbjmDcR94A6GNBivBAxQXivAsMBgvATBREwXiMaZAOvGkwXivAFeKNvBeAOgiggBgiigoDBDEZANihggCivBFADeGNhEFsNooooABDAIRNGRwjo0Q3gDxOF6fYcPi8Ere6ysrWyNt8f7p3AnGdOzbE7PPaw/wBdP84CBi/o/RcGMYmIutlLUyM1BbdFjbM3+c5p9hHhU80/5nYV9rfuzRKv7I5+zWuwp31uFYHjnMcNOix+ypmIOj1UHeRkvzBKt6SdaW0aZ6lar/hxJ3f4S3ym7SaSXmO2zokjFXbm1qf9Y57DTp1B57pMmTpzj099KZ579FlPwYS9WMoYibjgkyOi5S+kWp9fDIfu1GT1Bl2j9ItH6+HqD7jq/ruzmHUHUeYjqeFQ6ov8Im3ppryY2Z2NHp7gmHW9qn3qV/wEy5R6XYB9MSB99KlP8SicO2y6R+p5Ej0MifZKD3Sw+635ic3ima6Uek0ds4Wp7mJpN92shPleW1cHMG44EG4M8fq7LH2j4gGQDZ7L7r2PYCvoZO3P0TpPZyYLzyBK+LT3MRUHK1ZwPK8nTpDtFNMQx+8Ef8QMz0y9DpPV7wXnmNPprj11KN2vR/2ES1T+kKsovUoU2truF6d+4EtM2Olnot4rxphEpkdFBFAFBDFBQQGGKQAihigAhiigAhiigDRCI2OE2QdDGxXgg6cb9IeT4FuTVfWkfznYzj/pH/m8MeVR/io/KGVGxTGF/ZCWVnb2LnqUamVbPMvbdG6QbnS3lOTVoqePcLuDd3bEZ00Y2OZ6xF5GjT2YNP0uTbuzDyNpK7o0aJk0qUXkhqTt21Zrr2DWlCuJZqVJVqmdoQSMSmVGEmoyMyWlOk6ozGW5cSJxCgygeeOTR6EUqwkYWTVZEDMuWwQx6cqVll7XLymrhOji1BeviBS/shDVYd+YA855cueGP5Oj0YcGTL8FdHIuJRxXut3H0noqdBEqkihjqZb7NSk1MkeBMw+k3QfE4WhVru9JqaDrbjtvZkKLAqOJnmlqIT4Zuennj+So9IJjhK6tnJgZs8RIIYwGOvADBFDBQRQxQBRRRSAUUUMoBDFFAIYY28N5oyOvDeMivKSx15yf0jj/APPRPKr6o35Tqrzl/pC/oqdlVPwOPnI+Crk54CSKI6mosM+A9JPSpA8fjPZDURS3OMoy8IFKSkGWqGDv9YeM0KOyCdCJ1Wox+WcpdxeGYTKZDUQzqf5CqcAD6+sjOxKnGm3eFuPWdo6nD7OE3nXEGcp7I8pNSpHlOjOx7a3X7ylfWXKGwLi6uhHYQ3pOjy4WvkedajUJ742c4lMwVKZnWp0fY5C0FTo5U5DwnmbxP+5HqWryeYM4ashle07DG7AZVLMMgCTbWQYLYHtqRqBbboYuBqtheefPmw4qTd36Pq6HTZ9XCWSKUVHbfa36Rg7OTMueGS9/E/rnLmZibClDuDh8b53/AFylvC4Vjwn53XTvI348H7b6fjjp9LG9m1b/AJZFSoVLhkJBBBDDUHsmh0wrvU2TiWcWYBA47d9c/GbGz8PYgWyHrM76UNoCns56IFzWIH3UQqxPnujxM+bpZSyZ0vFni+palTxtV+S5TOZ7zLKmU6ep7zLSz9Qj8mSiOjBHQQdDGwiAGKKKAKKKCAGEQCGChghggFeGNvDebMMN4IIrygN5zvTtb4Nux6Z+M6CYPTf+hVexqX41HzmXwVcnJCt1Vz4L6SP236sJlJisrcso4V7zizsrNiniTz+Alhcc40c+FxMqg15aUH9Gcmkdoyl4Oq6JY4tWZarMyBHbdLva4ZQCCDfiZOcdW9rVpJWKPcNR9q7+zZbG6EnQ6EE5ZGcoKDdn8Qgai/6YfnPFPEnk6+r8H1tM8kIOMsTk359fpnQ1Nq7TBZQ2+4KgpSaliGzv9WnvZZfESfFijSqU0xLOKm6pxAopSstYjesGseBANgdMpzOGq1qRDIxBFwGRwrAcRe+kY1VmYs5JJ1JNz5y1JypUl9i5VDFFSkpNtcNVT92uV6/Z3Q25Q9mtNCyAX3Xp1SKlydWJPXHYeWVpHhtuYr2tKktdXVnRbqm62ZAtY8fMds5Si1rGeh7MxuykCtRYftKhijVVdBv65k9W+oBvymZRknzZmOTDOLbjUvFcfm/BSxdfaRrYjDlLimtRw3s2PtUU9TdIyJbKaOznOGw71ccEBe6exVswpz61j72WQEOwulJxNRqe/ukh9xNCTqCL66TO6b9anX3czTYVBb7Nyp8t8HuE8c8i7qSTT43O2CX9PbnXTy2uTnaW0KjZ5Z55C+WQX4zf2VSrVMxkoI61gBfO47c5idD8D7cLve6hIbtN8l8vKej0sMAqgCwGQAyFuyZzx3cTtqdZFwjS3aKK4ZKNJ61eoRTRSzsAAAB8SeAHbPFel+36mMq1XJK0rbtKlfJKYzAPM3zJ5nlO9+ljaxVaOCQ5WFWvbibkU1PdYt/DynlWK0buM+jo9PHHHqrdnxM+WUuWex09T3mWllSnqe8y0s+oj55KI4RgjhBB8MaI4QAxRRQARQwQUQjhAI4QBQRRQCrFGwzZkMUEEEHTE6YrfBVx/dnyqKZs3mV0p/oeI+6PxCR8Bcnj9RyGbvPrJKdaU8U3XYdsNN5wZ3RuYWrmJqLMDC1JtUKlxMM6IsWjWvHAxrTJpSaI7mT4cSveWMO0xJHfHK3uaNESc6aDyEgoHKTcJ5JRPqYMtLYhQvTqJUTJkZWU6Zqbia2zdtF8Sj4gDcuy1aeqNRqAqxPMWbMdkyaplJyQeVuMjxudXyuDtGWLG20vkmn+f9M9Y6O7ApUN9MPVWrTLF1KurMLnRrHOw3RfjadNSoboznjGxOkT4d1Yi9td07pI4i2npPRqe3fa01elmrC4a/y5zlJuE+qcf3sfNz4Va6JWv8HF/SD0Wx1fF18RSo79K1PdK1Ke9uqig2QtvHMHICebYnCOaVSoFO4uTHkToJ79isQWppnnbM8e+eT9IVX9n2pu6ftCHja/W3rHTUmenDqXKXSkSGmjOMnLwnx9jtKep7zLaypTltJ9VHxyRY4RojxKQIjgIBHCACKGKQAitDEYKAR0AjoAIoYoIULxRt4bzZA3igvFeCBmb0kW+DxX91UPkL/KaMpbbF8NiR/4qv4DD4CPDsb/ADjeHoI1DNvCdHauKGIq02ULSTfqbxCndA+qCesctBPTMD9B9Morvj3N1Rv3eFC+8L5Xc3nnbO6PJKDzVw1aerL9DOAT+cxmJ/8ART/Ehk9L6P8AYVHKpim/zcZQU+SgTLNI8zpvHEz07+SejFL3sRTJ5HGsx8kaMr4/ovSU2NNjY23VxFXP4yUatHmJktJpGNq4UGmTTLAKPaLmu++dyG4DMeUYm3qKoy+yJJIO/ujeW3AZydDZruJcbmxQbKWAxmfT6aUleowwaWamUCG+4hNuutyTvZfGVV6ZMPZ2w69S+6d4bzX+0dzreM5LC3ydlqumqNaqL/qwkAp3NgLk6AZsSeXbMPE9JajMzCmguSbZm1+4gSCl0iroyujhHU3VlyZTzBvHYZ6IfUVHfps6H9nvoDw0BN5e2TjcTh2K0lLA23qTqbE87ag24j4zjD0gxB/r20tkeA4d2sr1dq1GuWqsTxOc12LVPcxk16nxBL+P+nqtfpRXdDTp4cJUs1meoXVdLkKFudcu/jPPdrYZ0WtvtmC28CTvE3FyQQDne+YmR+1sQTvnt61j5XzkXt97IA589JceCGP4nlnnlI9tpS0kx9lbVo1goR+tl1G6reHPwmws9aPISCPEjEkEpBwjo0RwgBiiigCgiikKGGCGAGCGKCGZFBFeaIOigvFKGGVtpLehXHOnV/AZYlLauOSmhBzZgQF7Dlc9kPgiPIRUH2v9UtVNvVmADYqoQMgDXdgAOFrzIxGGszDkSPIyXC4VTvbwNxYixtln2GcLOxaNUsN6zEa3KmxHedZX/al5fhHzgbDoCMhmRxuQPKTvh1uFWxa2QVSzMNcwNeUllK5xfZ8fyEYcSeXqZedECgsCrC4dd0AC2XLv1gqLkwfMm24QwYgcmsbfPSLBnPiG0t8j6xMz3toe3L5R5b6xG9mQUIa4y13rZeBvly1houB1gx3hbd0ZTzubi3xksEihybFrHtJsT2ERi3P1uVrnX4mJxndlsGBItkNSLjsuNOyFmLddirZ2YEjePbu5EiAMKgX3jZgdCOHabZR7pu2vvDS9wbWOhFjpaPWkxBbPK1t5Cwb1HnGqtyTYjU3Ue63bawUQWmONOzW3Sb6AHfOfKxzPZJBRNwlgcyAdLcSBe3G/LjFRp7zEbt8ieq26V/tXOvcJMq5gECx13jZfAjj36yWWhoSxF9NL2AA89TLGCBV+sQL/AGmKZ8rj5xtRbMC1gON+sPLUd4k9F9xr72X1gg3j4jiPIwiNGggUmwAXM2ZC1ZSRre2h75p4faeITR6hUcf3gHxz9ZmMSh9oN8qdd1TTBH2rkWbx85LUxCi197Pj7ZfAkIx9JsydJg+kVXLr37Hsb9x4+c6PZ22EqWVrK3f1T56TzqqdLKoWw69Imqf8SgZ9+fhJsNiKi5qCya727kR3ajwvLZKPUxHTkdh9JhYLVPV0Da7vjy751dOoGAZSCp0INwZtMy1Q+8MbDBAxQRCCjoY0R0AMUUUEMqKNvFNEHXhjRM/au1BSG6tjU8wnae3shui1ZNtLaC0V5ufdX5nsnHYuuzkszm/HKKvWLEliSx1Ym5MpV21+c5N2bUaOf2gtqj99/PONpNZlOXLMXHPTjpJcfm1+z/j5Sqxy7pk0XWK8XA57qWHlcSszi9969tLD5C8dWqmw923AKEBHfui8gWp1gDkOYG8b8rXEgJBUutmB3r63IuOW6IxWsA43SPd3HIYjLXcPD590FRrH3jbtAU+Vz6yFTn/Z5568r9sAbuAmxNhY2O7vcNLfrWMquWJZrljqWYsx4ak5yxjXpswNKkaYsAV9oat2uetvMARwy7O2ROxNr8AANAAPKAB7X6uS8L5nztEDkMrHO5F7tyvn+rw0WZSSpsTCKZ7fKCodSrMqugPVa1+eXI8IqdxxsCLHO1x284hT/V5IqAcvASGrfkSbuXG2ls7HwllWB+oT3jL/AFGRqZOryANFWz6otqL23gfvAXt2S1hzUQEBhun6pG8q91zlIA5jgeZ+MpGWcOrKCA7AHOwsF8BbLwk1Fd25RmW4s2Ya/b1gc+2VUqW7vjLCNeaMkypr1mz96zlL94Wwh9inFAeJ3hvEnmSdTIw0cGghYDS3gdqVqB/dOQOKnND3qcvHWZwaT0SLZkG/w/WcoOx2d0tptYV13D9tbtT8RqPjOho1ldQyMGU6MpDA+InliVRoV43ytcfCWMNjHpNvUXKnsOveNDNKRHE9OhE5LZ/S7RcQn+ZT0/xJ+XlOmwuJSogemwZDowzB4GaTMtFiEGMvCIIPigggGZuGEJOjZyASVFhmSWyA8pxHSbpL7S9KjlT0dhrU7AeC+vdK5UErINq7ZC3SkewuM/BfznN1Kt9YHcmQM05t2dUqHM0r1zlJC0r4hspmy0ZeLGnjKhlrEG/nKpggwg6cPC/naNCj/vM/GPMaYA20BhMEgBFFDaAJTaPjI9YAY8RojhIB6yRTIgZIILZIDJFMiWJsRTX3nHnALAMcDbSZ77VpDS7dwtIH22fqIB2kykN+m9+H5RxactU2pWb61vui0rszt7zE95MA6upj6S+9UHde5+Eqvt2kNLnuFvWc+tAyengydBLYo0n2+x92mO9jf0k2Bxxqm1SqV7KYVfiQZRpbOY8JeobMOsllo7LYGDwBNsRSLk6VKtR3XxS+742ne4eiiIqU1VUA6ioAqAdgGVp5TgVZLC86jZG22pWU9ZPsnh908JqLoy4nZRwljAUFroKlJ1I46gqeRFsjLA2W/NfM/lN2jFFC8U0P5MfmvmfyilsHBdJ+kxrE0qRIo8eBqdp7OycvUqRjtIi/Kcmzqo0PZpHvaxpJ5wXks1Q5mlasZIzSCoZAUavH9cZXMs1gLnxlYyoy+S5sxabbwelvsLWvVZBY6dVRc6HjxjH2a4Bd0qBMzlSdVRb6EsNezs1kFHE1Kd/Zuy3yYoxUkd4kTVWLbxJLA33mJZr66mdVKKXBxlGT8gqIQcwRy3hYkcDGSfGYypWbequWbQE8ByldnA1I85zlV7G43W/IYpC2JQcb9wkbYzkvmZDRahEoNinPIdwjGZjqT5wDSaqBqQPGRtjEHM9wlBaRktLDEnSQtMmbaHJfMyJsdUPG3cI58GcjzAP5wrhIFFZqjNqxPeYhTM0KeClylghAox1w55SengiZuJhVHCTpRAlKZNHZstJs0TRVRHiAVKeCA4S0lADhHRwMECiCTLaRXhDQCYGTIZWUyVWgp1fRnaBVwA5VtL6q3Yw4iehYLFip1WBSpxRri45rfUTx7C1t0gztsDtYVaIRns62NNr2YEcAwzE5ubg/sa6VJHbbo5nzgmDR2tit0fuA+Xvgkbw7gLXinTvQ9nPtSPHiYxmhikNkZMaWiigDSZHUOUUUAo1zbP8AVpUrVlXU/AxRSmWVnxo4AnvykDYxjoAPjFFBCJqjHUmNCxRSFRJ7PKOWjeKKSzdImTCS1Twf65GKKCkyYYCSon/UUUABQW7mYeh+ccqCKKER8jwsmQRRSmSQGPBiigDgY7egilCHb0MUUAQeENeKKQDhJFMEUAsU6s0cHiyIophmkbKbWKgAE5cv+ooopypHWz//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMREhUSEhAQEBUVDxUQFRUVFRIWEBUXFRIWFhYWFRUYHiggGBolHRUVITIjJSkrLy4uFyAzODMuNygtLysBCgoKDg0OGhAQGy0iHSUxLzUtLS0tNy0yLS0tLS0rLS0tLS0uLS0rMi0tLi01LysxNysvLy0rLS0tLi0tLS0rK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGAQj/xABQEAACAQICBgYEBg0LAwUAAAAAAQIDEQQhBQYSMUFRBxNhcYGRIjKhsRdUk7PR4xQjM0JSU2JykqPB0vAWNUNEgoOissLh4iVz0wgVJDRk/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAECAwQF/8QALREBAAIBBAEBBgUFAAAAAAAAAAECEQMEEiExURMiQbHR8AUUYaHhMjNxgZH/2gAMAwEAAhEDEQA/AJxAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADg9cOkdYDEvD/YrrNU4zcusUF6V8ktl8jvCA+mH+c5/9il7mWIHTfDKviD+X+rHwyL4g/l/qyJLlVzfGES18Ma+IP5f6s9+GNfEX8v8AVkSpntxxgSz8MS+Iv5f6sfDEviL+X+rInue3HGBLHwwr4i/l/qypdLy+Iv5f6siZMuQkTEGUsfC3/wDi/XfVlPwur4j+u+rIwTLcmMQmUrR6Wr/1L9d/wL0elO/9T/Xf8CJqczNozLiDKUY9Jt/6p+t/4HZ6D0ksTQhWUXDbT9Fu9mpOLz45pkE0mTNqH/8AQo/3nz0yWiIWJb8AGFAAAAAAFvEbWxLYttbL2b5ratldd58yY/pM0lTm4yxVe+/J00s96ts5Z3A+nwfLPwr6Q+M1/wBKn+4e/CxpD4zX86f7gH1KD5b+FnSHxit50/3D34W9IfGK3nT/AHAPqMHy78LmkPx9Xzpf+Mu0+ljSUso1ar7b0su9unZAfTpAXTD/ADnP/sUvczV0eknSSV5Yma7W6Xs+15+BRfF6RrdZUoyqyaUesm9ltLdaMY5+SOlaW9EaEXJDwfRvUmrzlTpLtUm/JMv/AAbxvb7Ip/Jz/fN8LejjbX04nEyjY9udfrFq1Swdr1I1G5wpxSjJXlNpLPayS3t8kzkpuL9KHqySlHuaJNZjy3W9beHlz255YWI0quVRZRYqRBlU5FFUohKxdmroItwkZ2GkayLNjhOYgbOmyaNQX/8AAo/3nz0yDnXsTb0dSvo6g+yp89MW8LDpAAc2gAAAAAPk3pU0b1GPrxtZKvO35s31kV5T9h9ZHz7/AOoXR2zilVSyqUYTvzlBypv2bAEPAAAXKNGU3aKv7l3vgb7ROqlWolOouqjwUspPw3o7PQeqik1GnTlUflFfx2s7U0bW89Q1xcNgdCOT9VzfJJ28v3rHX6E1KrV2ko7P5qUpL/TDwuSjoPUmFNJ1bP8AIhlFd7OqpxjTjswjGKXCOS8TvWta+O3m1NesOK0D0b0aNp1fSl37U/Gb3eB1tKnSorZpwjHuXvfEVq9zW4zFKKbbSXada0mfLxX1b36hcxuOe65rK2kYwvKUlGMFtSd+RzelNPznPZw8NvhtvKmvHj4eZwesekauIn1Kk5whL0rWUZTWTlN7klwX+xq1uMdQ3obK1pzbpsNP63U8TiI01HrLzlFT+9hOcJQi1zs5nmsui44acKcFaKpQUfBbLfi4yfiXej/VDblHE1FtRjLap8pyWe32xTzT4uz3b990iYJ9XTqW3ScH4q690jjatppNrPoRpVpGIcIpFW0Whc8qL22j1SRYueXAyotcy7CS5owLlylScgM2nSp+ntSalZbFvVTzb2u+yS77lPX8EWqtCMUna72t+d91rrkZlChFxVs7K1+PiMDH6xk+9Gb/AOmYfuqfP1CCpYYnbo0VtG4fuqfP1CWWHTgAwoAAAAAEWdPujuswtKqlnGpOl8pC69tNeZKZy/SZguu0biFa7hBVl/dyUn7EwPk7R+AqV5bFOLk+L+9iucnwR2uhdD0sPaUY/ZFXdt2fVxfKC4vtzfcbfVvV11oxjSgtjKTSTVNXW+o985dnuJJ0Nq7DDpO23O1rvh2RW6K7j6OntYrHK8vLrbyNKcVjlZzmgNWKlVqeIvFPPZ3PxXAkTR+ChTiowiopci3Ro2K54jYWbsSYj4OXPW1f7nUekffa9WrWyRr8XjIwV5SSXaaXS2sajdU7P8p+qvpI70vrNOtPYpKWInz/AKOParfx2m+MUjNnXT2try7fSWtEVfq7O2+Usoo4jSOtcastmLlip3yUPuSf527yTM/G0qGIVSMttwqSk4QjThk2lHaTvnBbMZpJqzbV7Oy803peGHca0eshszl6voPZX3OMVtNWTSbS2U7tZttvl+ZzGax16vp6ewmkZtGPn/DlcdpWpUk6c6qikryp0b7EUt+3JZyfZexf1Y0HU0nN0qadDDwdqs1bJcr7nN8uBt9UYPE2nTwcMLRVJ0utWx19SWy49YnsZztxd0m5b9y72hVcIqFOEIRS2YxSeysksop23JWyyzta5a+01Y9I+blFor3MNxgMJQoU4UoKMYwioRS9JpJcXvvxu+dzTa6YZVcLVULvZj1nhB3k/wBHaMilQkrbUrJbo7+L4PLj7jMoYaOxJNejsSUu1NNNHadKeM5lztvdP+nGZQRY8sZGLouE5Re+MnF96dn7S1Y+cigWLigXqdEIt0qFzLjG24qjEqii4Ri417kU4Wvs5HmMeZjpkVuo1Eyc+jj+bsP3VPnqh890ap9BdGjvo3D91T5+oS3gh04AMNAAAAAAWcbh1Vpzpy3TpypvulFp+8vADgOi6EXgVGSW3Rr1cPPneM21f+zKJ1bprkcfq7U+xtIaSw8rRi61PGQ/vYvb/wBBsdKabsrQ3vdzf0Hak2tMRD06G3iY5YiP1ZGmtKwo+ivSlyX7eRxGsOnY049ZiKmzf1KazlLujvZotadcaeGbjGSqVs78YwfJ/hS7Ny4vg43liq2LqucpNX3zbvJLv/YrLkeyI4+7HdnO+ppxPux/t0WN0rLF1NiW1GL3UoWdWX5z3RXebmnRjRhbZjf8CPqJ/lt51Jd+XYavRmHhhYbe5tXbfrPvfMxMZpS6u24wX6UnyRz3W3tGOU9/tH1++nu/D9zStZtP8z9G/wD/AHONKMqk5XfP9iKdB6vVMfNYjFRlGjvpUc1KpylJcI+8zNTtUniHHFYyOzTXpUaD3W4Tmvcv4chutGCtFJG9Hb8ojPj5/rP0eHffi0ZmsLFDR+yknanFKyirZJbkluRc62MMoLPnxLbU5szsLgFHOR7pitY7fB1NxqavXwW8Nh3J3ZVj66S6uP8Aa+g9xWNt6MPP6DBijHdpzL17fQ4+9ZGut+F2MVPlK1Rf2ln/AIlI06gd5rfomVarQ6tJymp0s+LinUivLbNb/InGfivafL1o43mHtc3TpF+MDo4anYpLOg2+e1l5WH8j8X+J9pjMJhzuyeM6L+R2L/E+08lqbjH/AEXtGYTDjsRvLB11XUXGv+iXn/sWv5A438VHzf0GcwrmYs+h+i9/9Lw3dU+fqER4fo7x03bZpx7ZSlb2RJr1M0TPB4Kjh6koylCMtpxvs3lOU7K+eW1bwJMrDdAAyoAAAAAAACMdel9j6WoVsoqvg6lFuTtBSpPbu32KxGOuev205UcHJ2d1OvulLmqf4Me3e+xEodPWj+swNOrbOnX2X2RqxcX7VA+c1St3nfSvMVmK/wDWuduPHPSmnC7u82dFoqneNorO6NPQo8WdXqrBelNrKEdv9FNr2o9e1vWlmfYTdTp6ai1FvKmlftlbd4ftNnqBqw8VNYvER+1Rf2qD3Ta++a4xXtZqMNhYYnERhXqxo0b9ZWnJ2ur3cYc5Nu2W5ZkmPXXR1CKhTlOahFRjGnTkopJWSTlZEnWrqXm9569GNzM6dfZ6Ud+rf9W2X6Oj+ZxWI6UKa+5YScu2pOMfZFS95rcR0iYup6v2LQT7JSmvNv8Aym7byviHza7O8+UnznCku3lxNfi8Y5b3sx77LxZEOL1mxU29rFT74+gvYkzU18ftZzqOb5tuT82cfzcR4jL26e3rT/KX62msND1sRS7lJSflG7MGtrjho+q6lT82Fv8ANYir7N5Re+3JeYWMk9ySXi7eRid3efGHfCQsVrjGU6Mo0pQVLE06+05Ju0JektlLjFyW/iTqknyPlfV+pOdaLcVVis5RcdqLXJ7Kl7USOtcasPufCN21UVsuHobS87Hnvebzm0iYtlchsrkRXhek6pC3WKE1v9JOEvCUcvYdLo7pDwtS3WKpRfO23Dzjn7DOFdfsrkNlcjEwOlaFf7lWp1OyMk5LvjvRmEHmyuQ2VyPQB5Y9AAAAAAAAAAAADm+kXA9fo3FQtdqg6q76dqi/yny9sR32PsKvSU4yi81KLi+5qzPlrSurdTDpqdPEUpQqOlJzpS6tu7s4u2cbWzTZqJmPA0yfYv47z3rO36CjE4ecHaS3O10/RvyuuJ5SUW+C/PeS4+tu80Sc/Eyr65cx1r/BfuLkaTX3r2d90m7W7Vsp7y3fJ87q25S9z95AUpPksr8+3geJuybk7Xs7WVj2crbMnuss8lu73Ls4HiW/iuDSk12X3L2cAPVTV8997pvc1yZ4pWs0rK+fY+aatYp6xKz2kmuTWa7ope8pdRZ2Td+zLzlmBU975338WvDf5lMVd2XHks75cN5423k7cs25GZg8HtNXk9/dbuLgbXQE4QV6ig+HpOjfwjO8r5cFc3WInKq7whVmrOKvCo7cnKVWcbccol/QmEp01dQinz2Y7X6TTftM/E4l/hS8ZN+81FUy0UMFWt6sKb3bW3Latyahb3vvK6Wi7KzqT7oWprN3zcc34v2mbPE8/YUfZEedu/IuITL29u225tvhx7za4LWzF0PUxE2vwZ+nHu9K7Xg0aWcizVqpb2l3sqJBwHSlONlXw0Z85UpOL/Qle/mjptHdIOAq2TrOg+VZbH+POPtIWo0p1XalSqVO1Rez5vI6DROoGKrtOpajHsW1PzdkvaZmIXtN2HxEKkVKE4zi90otSi+5ouHN6o6nYfR+1KkqjqTioznObbaTv6qtFZ8kdIYaAAAAAAAAAAAMTSGjqdeLjUipJ8zLAEV6y9F0Xtzwz6tys5JJNSsmldPJrMi3TmrFWg2qlJ07ffRUpQffHfHwv3I+pjCx+i6VZNTgnfsLkfJU6c6edk1uTaUoeF8imVVvdGTfHNbPkluJ11h6MINupQ9F8Y/ey7JLiRXrBqtXw3r0ppXbbinKG929Hfut9ARz0K9SMtuMuqktzp3jJZW4bsi0433tsvVKEo2bTs9z4PxLYHiVt1l4HjT7yo9KKaSzN1o/gaqmjbaOpTm7Qpzm/wAlN+3chA6DD17IrlXuZWitUMbWt9rVNc5ZvyWR12jOi69nXqzl2J7MfJGuUJhH1TEK9r58lm/JGXg9E4it9zoTd+MvRXlvJk0XqXhaHq0o37kb6jhYQ9WKXgZ5LhEejOjfEVEutqdWuKgkva8zrNFdHGFpWco9ZLnK8n5s7YEzKsLC6LpU1aNOK8DMSseggAAAAAAAAAAAAAAAAAAAY2LwNOqrTin4GSAOA1g6NqNW7pfa2+C3PvW4i3WHo+xGHbag5L8lNry4eFz6RKKlKMsmky5HyxS1TxUpuEaTnaVtqP3N9qk7XR1mh+ifEVLOrJQXJK7839BO9LBwjuhFeBfSGRHWh+inC0rOa6x/lZ+zcdlgdA0KKShTirdiNmCCmMEtySKgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISDxURExITFRUVFRAXGBcVFRAVFhkYFxUWFhgVFRcZHSgiGBomGxUVIjElJSkrLi4uFx8zODMsNyguLisBCgoKDg0OGRAQFyslHR0tLSstLS0tLTctLSstLSstLS0tLS0tLS0tLS0tNS0tLS8tKy0tLS0rLS0tLS0rKy0tLf/AABEIAKwBJQMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xABIEAABAwIDBAYGBgYJBAMAAAABAAIDBBEFEiExQVFhBgcicYGREzJSobHwFCNCwdHhM0NygpKiF2Jzk7LC0tPxU1SDoxUWNf/EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAIhEBAQACAgMAAQUAAAAAAAAAAAECESExAxJBUSJhcdHw/9oADAMBAAIRAxEAPwDuKIiAiIgIiICIiAiIgIiICIiAiLUOsvFnRUraaE/X1jvQs4taf0snEANNrjYXA7kGm43NV4tLJLBUmGmje6OBoL2iXLo6Ylh1udh1sNwN7x0NTj9HbLK+Zg3FzagHl9YPSeVlumHUTYYWQs9VjQ0c7bSeZNz4rJsu3pHP3rUqLrhqInBlXRtvvLC+F393IDf+ILasL61cNmsHySQOO6aMgeL2ZmjxISenZI3K9jXt4OaHDyKgK/oNRS3IiMZ4xOLfJpu33LN8a+7pmH4nBO3PBNFK3jG9jx5tKy1war6tXtdnp6kZh6ucOY4H+0Zs8GpFW9IKLZJNKxvHJVA+d5APJYuNjW47yi4xh3XPOx2SqpGOI9YxufE4f+N+a5/eC23CutjDJrB75IHHdNGbeL2Zmgd5Cit6RYmHYpBUNzwTRSt4xvY8ebSVloCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAuXUlT9OxCav2xR3p6bgWtP1ko/aJNjwNjsWydZGLOipBTwn6+rd6GPiAf0knEANNrjYXArBwyhbBCyFnqsaGjnxJ5k3Pit4TnbOVZAC9AVQCqAXXbnpRlXtlXZLKbXS3ZeEK+yInYFdFJxcB4Eps9bUXW0UcrcssbJBwe1rh7wtbxDoBRSXLWPiJ3xvNv4XXAHcAtyngLeYOwhWCE4pzHMKzq1mY70lPUNLh6uYOieO57b6+SQ4t0goft1EjBucG1TSObu08DxC6YQqFPSHvWm4X12TNOWppY320c6F7o3D/xvzXP7wW4YV1s4ZNYPkkgcd00Zt4vZmaB3kLGr8NhmFpYo5P22NcR3Ei48FpPTLonRQUr52B8ThbK1ry5rnuNg0h9zbfoRYA8Fi+OxqZu40FfFPGJIZY5WHY6NzXt7rtNlkrkfUJTPDaiTXIREzfYvBc46cQ1zP4l1xYbEREBERAREQEREBERAREQEREBERAREQEREBEWqdY+LvhpBBCfr6p3oY+IDvXk01Aa07dxcCg1ylqfp2IzV22GG9PTcCB+klH7RJAPA23KfAWLhVA2CFkLPVY0Ac+LjzJufFZzWrtOI5Xl4Aq2sXmYfP4Kmae2gPsjT+tsKslrUxXRHu081cbEBt1Xkbco+ferUtQOKaXhkOd8/8K0TzPuVhkoJACtPqQAD7TiO+3/IWpjWpWW59wWnf8hYpVwnZ3j8VQ4LLOa05UFXCqCq5KCuXdY+Junq2UkYzCItGUfamksA0X3gODe97l0HpDigpaaSc6lo7I9p50a3zI8LrUOpnATU1zqyXtNhJdc/anfc3PMBxcRba9p3LHkvxvCfXX+h2Biiooqcaua27z7T3avPmT3BTSIuToIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIC5nTVH07Epa3bDBenp+Bt+llHeTYEbQbblsXWLjDoKT0MJ+vqnCGK20ZtHv5BrTt3EtWDhGHtp4GQs9VjQO87S48ybnxW8IzlWY0K/CPgrbdNSqo5QAea2ki42MF1zu95VYDG6hovYDYL2GwLCnrmjabKIrcRsM7XXF7dx22+eC3jhckuWk1PWN3hY5MbwQNDxUHjVSWPaDtLGE9+w/BU0LZHsc4aAjKCdL30ce4C/jZdZ49Y72x7c6XYK12rmi5AFv2naNHnr4FWsPlL5STqyLsi32nb7cbuv4BZcwEUWRnra9o7jaxeeFgVbwqANAtsHqjn7XetbmrWomWXO3dqe8r1yqYyw5qly821yq2VbKuOUZj2JtpqaSd2uRug9px0a3xcQFWXPeszFTLUspI7uEZaSB9qV+jWjmA4DveRuXaeg2AChoIoNM9s0h4vdq491zYcAAuQ9UOBOrMQdVy9psJMjiftTPuR5XLrc2rvq4W7rrJoREUUREQEREBERAREQEREBERAREQEREBERARFq3WJjDoKT0UX6epcIYgNoLtHP5ZW313EtQa5DUfTsTlrNsNPmp6fgT+tlHfewI2gjgthaFgYPh7aeCOBmxjQL7LnaXd5JJ8V7VVdjlHiu2M+OfdZ0koAtz+fisCrrmN9Z9vM/BYdXWWbYLW8Uc+2ax1NgN5uu2Hj2zllrpn4xOQA8OzMdsKrwJmaO7/V9JnN+DNB5uuPAqHq4ZJfQUTPXs5zjubnN7u5AKXraoQAkkNGbKxoGpI0FmjaRy3knfYdreNMTva9VU7XzGWbYLZWfAv/ANO1XajEg0XcQ0Djp4Ablr01c/aS2O++Q3f+7GNfOx5lKOPM8WD3Ovo51i79xg0Z36u7lNb7XaWjldKdQWt00O08C/7gtloKXKMztu4cPzVOEYU2JofIQDuG23+pyknSxnQedgFw8me+I3jFlytOVxytOXOFW3Ll/Whi5knZRsuRHZzwNSZHDsM7w0+b+S6HjmJNpqeSd+xjSbe07Y1o5lxA8Vz7qqwR1diRqZu02JxleTsdI4ktHgbu5WapneNLjPrr3V/0fFDQRxED0jhnkPF7tT4DYOQC2REXJ0EREBERAREQEREBERAREQEREBERAREQEReXQerm8TnV+JS1oBdBSl1PBvBf+ulHna40ItwW0dPcQfBhlTLHfOI7Aja3O4Mzj9kOLvBap0A6S0P0eClbJ6F8bGtMclmB7ybvc1/quLnXNr312JLqpU61QdQfrHd7v8RW7zUzXbRrxGhWtYvgkgLnM7YNzYaO8t69GNm2EHTNEk1nGzG9pxOy17AeJspDE6dkk0AYQWDOXaEHS2ljsvc+9a6ZHMa64LXlwFiCCLXAuD+/5KVpJSG5ibnKRf5711ve2Z0v0rQ10s1u3ITr/KPCwC0zpFiAM5aNAwZb3IPEi4I0+eC24P0De8+781zifBJPTyySNdb0khuQbWLiQb8LHbsVnaXpmUTgTpbv0Hw2+K2zB6gMH1Yu72iPgN/wUBhdG06m5A1NiGtH7Uh0/hB71P0tY/1YWMY32styf4viV0yvDES7ZX+s4O73bfyHIKToqgOCiGYlI22ez2naLNBtytvUhQQ5Rx4fcuGXXLtizSVQ4r0rBxjEWU8Ek7/VjaTbidgaOZJAHeuaVzzrUxjPKyjadI7SSW9ojsNPc0k/vt4Kd6kekkTM9E4NY57i9rvbNrEHmAPLuK5NiFY6R7pHm75HOc495ubcBuHIJRVLmPa9ji1zSCCNoI2Fcbd10k0+vUWq9XvSttfSgnSVlmyN5+0OR+dbralFEREBERAREQEREBERAREQEREBWpJ2t2kK6oLGHGN+a7S11tCQCgkzXM5nw/FUGu4N8yoynqGu2HXgdv5rIAQZBq3ch4KkyuO8qgBegILGI0vpoXxFzm52ubdpIIuLaFcR6Q9CJoHHJ2266HTTku7hYWJU7HtsbfFBw/AumldQkRh5cwfqprubbgw3uzTgba7CuldH+smjqbNlP0aQ20kI9GT/AFZdB/FlKi8b6ORyXBaCO5aFivRd0ZPozccD9xWpbEdyxKmjlMbXxekzE2dY9kAXvnGzkL6qKq+j5LQYXXb7LtDoTsOw+Nlx7BOlFbQHLHIQ0fqpAXxHuF+z+6QuiYB1k0kzh6cGllyloJJdT6m98wtk2a5gBuuVueTrTPr2t1MropCHtcC1t7EG9rm5HHwUHVzUssgf6YyC9xG50gY08RlYc3mO9dMqJGlmaQMfC2IyOk0cDYEnIb7gL333GqhB0Up5GNmhbk9IMwY+2/XQi+7Xft2rthn1bwxZzqIuhggfYvmBA2MjZK1g8CNTzNypdtZSM0vbdq123yUbVxmnIa6J4JvawBbp/Wvb3396xqSnJfncMz/stGob+J5q3n6Thly2dK63qtJHkVPUzSGi/ksSioCO0/btt95WcSsZXajiuZdauM5nso2nRtpJe+3Yae4Xd4tXQcUr2QQvmf6sbS48TbYBzJsBzK+fMar3yufK83fK5zncgTsHLYByC553UXGMGSXM4ny7ldiesIOV5j1ydG19EOkUlFUtnZcjY9vtN3jv4fmV9K4VicdRCyaNwLXgEEL5JikXSOqrpf8ARphTSu+plPZJ+w8/cT7+8lB3sOVQKxGSXVwPQZCK0HKsOQVIvLr1AREQEREBFyjDum2LTsjewUH1kdS8B0dQHWgcWO/W2tmMQuSP0mwhpKxcb6xcUpXtZI2hLnMzdmOoLR23ttf02p7IOwWzWtorpNuwouGf0u4j/wBOj/up/wDeXT+r/HZa6hbUTCMPL5W2ja5rbNdYaOc438U0rZFiYhh0czbPHjvCy0UGk1+CTQax9tg3bx+HglBjh9V1zyOjvA/aW7EKIxXAIptbZXcR94QUQTtkF2OH3jvCOzDbf57lrdVRz0zrkFzRsc3b5/ipHD8dBFn68xtH7TUElZUvar7GteMzCCPnyVLmW2oIqqgutcxKivuW4yxqMq6e6o53X4W11wWgjmtYxDo8RrGfA/cV0ytpFEVFLyVRoeEY7WUD/qpHRi9yw9qJ3ew6XPEWPNdH6PdadPI5oq4zC8DKJGZnw62vp60dzbc4WGrlr9VhocLFoI5rXq/o7bWM25HUfkk3Oh9CU0sc0YexzJI3jRzS17HDkRcFWRg8bbmMBhPiPyXzph2J1dDJmhkkhJOttWO2es03a7ZbUX4LpPRzrfYbMrYsh/6sIc5ne6PVzf3c3cFqZJY3eop3N2jTiNQsYlSlFXNmjM1PKyeM3sGuYRcAdkOGw3B0dvO6yxsalp4oZJnnIImPc7KL+qCbW4m1hsuStSsacs61cYuWUbTwkl/yNPvd/CuYySknTZuB1CkcSrHzyyTP9eVxceQ9kcgLNHIBYgi46fPztXK3ddJNRjmIHkfd+PxVt0BCkG054XVxlNw28CCoqLa4hZUMyyHUw/41+C8p4Q14cWB7RtaS9oI72kEH8N40Qdr6rumH0iL6NK766MaEnV7Nl+8bD4cV0Jkq+d+jeEySzCWhc9ksfayTerptDZ2DK7aBlc1hsTtXdaKZ/o257Z8rc2XUZra25XQTLXq4HKPZKr7JEGYHKsFY7XK60oLgXqpBVSAiIg+KTiMvtfys/BejEZfb9zPwXQ+iE8baCJsBkbKHzGo9FLQROPb+rM30hpzxejta3ZuH3F1SHUc8hlLGRsoZ5pGxBzCJYHF0jYGH7Q+ktsLbGVPJXlLY07CKtz3OD3X0FvVHwX0b1Of/AJLf7Wf/ABLmOGVszjA+KSBsDmsfVhxp2gzOkc6pdUMd2nhwPZ0PZsG2IXU+qYs/+N+rvk+kVWS975PSHLe++1kpG5oiKKIiIKXsBFiLha9inRhru3EcjuG78lsaIOf+lmp32eC0+0Nh7xsKnKHHGPAElh/WGrfHgp6ppWSNyuaCOa1fEujLmkvhP7vztQTogaRcHQ8LHyKofRN4X8VqlJiUkLrG7eIN8p7xu+dVslDjMcmjuw7nsPcfxQYlZRDcAoCtpFus8V1D1lKqNLqKdYMtOtmq6VRstOqiAnw5rxYgFa7iXRXfGbct35LefQqsUTj9nzsPilHK6aaqopfSRPkhf7TDYHgHDY8a7HA9ymekPTyqrqVtNM2MWcC97GlrpA3VrXDYLOs7TaWt2W13afAmvFnZfIn8FDz9EaKI5pJC3vcyMe+58iorQmMbaxbfgfnYr1NG5xLWNLuQBcfctyz4fF6kQkP7D5R/FJ2fIquTEJpQGxQPy3v672D/ANfwuoNagwCpdr6Msv7RbHbmWk5vddZcPRkkkPmaCLXyte/bxLsuvddTsOFVrxa7YxyAv5nNcrMi6Hud+lle7lc28ibe5BrM+G00VgMsjt4lm9G3yjYXFZeGSRh4AjitsbaB9wfa9LK4uPgBtW30fRKBmxl/h5DRS9NhLWeqwDuACDGwxzg1l76A2HDNluPcpuGRW46PksuKmKC7G5ZMblajhWQyNBeYVfYVaYxXmhBcCrCoCrCD1ERB8jU9G0etb4qSiih3u/ld+C6h/QwP++P9wP8AcT+hgf8AfH+4H+4us8mnDLwS/a5zTYSag5acZ3DUi1jbdt2rtvVVRvhw0RyNyuEs9xw7W9ReA9WP0ZznCrz5m5SDALWsQf1nBy3bBsPMEZYX5yXvcXZcty43OlytZ3C4b3+r8f7+3Pxzy4+T11+j8/fn7/z8ZyIi4PWIiICIiAiIgwsQwyOYdpuvEbVqmIYFLDqztN+dy3heEINGw/GXs7O0ey7/ACnd86KWmxJmW5a7X9k/es3E8BjluQMruI+8LVa3olUB12SSDk15Lf4CdPBBerK9lrkBo4ucAFBVHSGlH6xrv7MOk/w3AWR/9BfI4OlLnEXtmyi19ttp3KYo+gUbdob43d8UGou6UX0igkd35WDybmPuVP0qvk9WNkY5gk+bj/lXS6bo1Czdf3D3KRhw+Juxg8kHKIujVZN+knkPJuZo/kyj3KUoerkXu4a8SQD/AC6rpYbZEGpUvQqJm5t+TdfM6qQZ0eYFO2SyCJbgzQrjcMbwUlZe2QR4oBwVYoxwWalkGIKUKoU6yrIgxxCqhGr6ILQYqg1XEQUgKpEQEREBERAREQEREBERAREQEREBERAREQF5Zeog8svLKpEFNksqkQU2SyqRBTZe2XqIPEXqIPEXqIPF6iICIiAiIgIiIP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw0IBwcICA0ICAcICA0IBwgIDQ8IDggNFREWFhURExMYIS8iJBonJxMTITMhJSk3NTowFys/OTMtQyg0Ni0BCgoKDQ0NDw0NEC0ZFRkrKysrKysrKysrKy0rNysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAAAwQFBgcIAQL/xAA5EAEAAAUCBAMFBQYHAAAAAAAAAQIDBBIREwUVUpEGkrEUITFTcwdBVHGyI1FjZHJ0IjRhgaLB0f/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABYRAQEBAAAAAAAAAAAAAAAAAAARAf/aAAwDAQACEQMRAD8A7iAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPxVqQpU5qk8dJZYaxUI8Yk+6SpHtAGSGM5xJ0T94HOJOifvBYMmMZziTon7wOcydE/eBBkxjOcydE/eBzmTon7wIMmMZzmTon7wOcydE/eBBkxjOcydE/eBzmTon7wIMmMZzmTon7wOcydE/eBBkxjOcy9E/eBzmTon7wIMmMZziXon7wOcS9E/eBBkxjOcSdFTvBetq8tenCpT1010jCPujCKCUAAAAAAAAAFLjH+Tn/ql9Wv6s9xr3WU39cvq17JrEfvU1fjJ8yBJqao8jIEmpqjyMgSamqPIyBJqao8jIEmpqjyMgSamqPIyBJqao8n3IH71ZrgUf2Nb6n/TBZM3wCOtGt9SHoaMqAyoAAAAAAADH8djpYz/1y+rWcmx+IY6cPn+pJ6tWyaxE2RkgyMwT5PmSHMyBNkZIcjIE2RkhyMwTZGSHMyBNkZIcjME2RkhzMgT5GSDMyBPkz/hyOtGv9SHo1nJsfhiOtC4+rD0NGaAZUAAAAAAABivEsdOHT/Uk9Wo5ts8Ux04ZP9WT1aXm1iJ8zNBmZgnyM0GZmCfMyQZmYJ8zJXjUhCEYxjpCENYx/dBz678a3M9zNPbRp0baE37KlNJCfKX7ozRj79fyBvNtxmjc8QurC3yq1bSTK6qy6YU5tdMNf3/HtFkMnKLbxLcW9xJS4dJaUbi/uoY2tClLLC6rTx0ynmjrN9/vjr7nTqc823Ju4buMNzb1xy09+mv3GCzkZoMzME+ZkgzMwT5mSDMzBYybN4Tjrb3P1YejUc21eDo62919aH6TRsIDKgAAAAAAAML4ujpwqeP8an6tGzbt4zjpwepH+NT9WgbjWIs5maruG4CzmZq24bgLOZmrbhuAsTxhPJPJH4Tyxlj+UYaOIcRqTcPrV7atrv29SajNL8Mowj8fy+Ef93Z9xhOM+GLHi11Tu7uSpvyywknjSnjS3pYfCE3/ALD3mjkFnxKrbcQtuISxhNXtq8laSE3w/wAMdcfyd74feRu7O1upqc9vNcUZK0aFT3zUsoa6RazJ4J4XJc0riSjPDamhNChGrPUpzxh8MoTaxj+WujZdwwWczNWzNwFnMzVtw3AWc33NV3DcBazbf4JjrbXn1pf0tH3G6eA5tbW9+vL+k0bQAyoAAAAAAADX/HMdOC1I/wAen6ucbjof2gRx4DUj/MUvVzDdaxFzcNxT3TdBc3DcU903QW9w3FTdN0FvcNxU3TdBb3H3cU903QW9w3FTdN0FzcNxT3TdBc3DcU903AXNxvX2eTZWl/8A6XEv6XOd10H7NJsrPiP9zL+k0bkAyoAAAAAAADV/tHmx8PVY/wAzR9XJ911L7T58fDtSH77qj6uQ7i4i5um6p7huKLm6bqnuG4C5um6p7huAubpuqe4bgLm6bqluPu4C5um6p7huAubpuqe4bgLm6bqnuG4C5uukfZXNlZcT/upP0OV7jpv2ST62fFIfzMkf+CaN/ARQAAAAAAAGuePOF1OJ8Er0LaEJriWaWtTkjHTcjLHXHXu45U4Td05oyz21zLND3RhhGL0NGGqGa1pzR1jLLGP5A8+8tuvkXPkictufkXPki9Aex0uiTs++x0uiTstHn7lt18i58kTlt18i58kXoH2Ol0Sdj2Ol0Sdijz9y26/D3Pki+ctuvkXPki9Bex0uiTs+ex0uiTsUefuW3XyLnyRfeW3XyLnyRegfY6XRJ2fPY6XRJ2KPP3Lbr5Fz5IvvLbn8Pc+SL0B7HS6JOx7HS6JOxR5+5bdfh7nyROW3XyLnyRegfY6XRJ2PY6XRJ2KPP/Lbn8Pc+SJy26/D3Pki9Aex0uiTsex0uiTsUef+W3PyLnyROW3XyLnyRegPY6XRJ2PY6XRJ2KOAS8LupowhC3uYxj8IQki6p9mfB63DuH3E93LGlVuq25LSjpGMksIaQ10+/wCLbIWlOEdYSS6/kmhCEIaQ90Cj6AgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMREhMSEhIVFRUXFxUXFRUXEhAYFRYVFRUWFxYWFRYYHSggGBomGxUVITEiJSkrLi4uFx8zODMsNygxLisBCgoKDg0OGhAQGismICUtLS0tKy0tKy0tLS0tLS0tLS0tLSstLS0tLS0tLS0tLS0tLS0tLSstLSstLS0tLS0tLf/AABEIALwBDQMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAGAAMEBQECBwj/xABOEAABAwEFAwcHBgoJBAMAAAABAAIDEQQFEiExBkFREyIyYXGBkQcWUlOhsdEUI0JictIlNUOSorKzweHwFyQzVGNzdISjFTSC4mST8f/EABgBAQEBAQEAAAAAAAAAAAAAAAACAQME/8QAJhEAAgICAgICAQUBAAAAAAAAAAECERIhAzFBUQQTImFxgbHhQv/aAAwDAQACEQMRAD8A7ikkkgAzytX5NY7AX2c0lfJHE0ndjJzz7N+XFcnazaU/T9tg+C6T5b/+wi/1Vn/WKu7tsWJ1aLrCKatkvs5ILv2opWuXbd6iyecjTQvFf9h8F6GwACiprVZGvfWiRSY6OMssu05FQ4U7bu+ChWm27RRmjpQD/sD7gu4Xg4RsKAZ6yyrtDhUvLIlOgMF4bQ0ryvssPwTX/Wr/AK05bP7Ni+6uhWqPCxVt2WXE+qv6I+2TmwWNu2iAryop2WD4KLJtBfzdZx+bYvuroF7PwiiFLW5R9S9spSKXzovz+8foWP7qsbDbdo5hWOSo40sA94WtjhL3ho3ldMslnEMIGmWaPiio22zVlJ0jmNpvXaCLpzAAa5WD7q2ivHaIgHlDnmAW2EGnEgtyHaj+wWWOcmUPa4NObiDhjPU09J/sCYvW2sjBpWle1zjxPE+5R9a9luvADSXptC3N0wA/2H3VVv2zvkOwm058OTsn3ER37byxmJ3Td0W+j19qH7guie1y8nBGXvOZd9Fg4uOgUuPoql5HX7T341rXutAAd0BhsWN3WGYa4eulE4+/r/aKump2ssVe8YckWTXdZrtBLn8vafpOrk08ATpTx7EHXhaZrU40NGcaUb3DV3uWOPoqMY1+RFk22vhpw/KangI7IT7GKws9+X+9uIS83iW2IDuq3Nb3bdTY89/E0q48M93VopF6Xg7QkmuTWtGp4BHGuy48cHtkOK/b+e8RtnDnHQBti3a/RSvG/L+g/tZw3/xsR9zVCFpc14cHAPaajCScJGgrpXqz61IvvaAytzGJ56Q0aCN9dTxoNOJ0WUZhAzZdo78ka5zbQCGkA1FiBFdMi2tNfBRp9rr5Z0rR+hZD7mqNZLe5p+aGJxBBbnSn1uzI9yZjq9x55kcBV2BpMbG9bhkO7LrWfsb9cEtk+Da2+pHBjJy5x0aIrMSewYFdTHaRjcb5A0UqS513inapvk8vVkJljLG8o4YmPoMRAHOZXh9If+Sa2utklpfybHOefQb0WnrP89yvDVkYK6ByTa2+G62odzbIR4hqvC3aT1g/OsCpbTc8keFoGMkVOAEgZ0NTwGWengiKy3/KIY4siWtwlzXlxOHJtCwFoypWr2mu8IorzZjil2VFp2mvuxOEs0zSGEFzMVkzzAocHO3jTPfovS9nkxNa7iAfEVXlXauRwgIo0BxFRhjDukHZ5vfqNTIexep7CPm4/sN9wUTVMl14H0kklAEkkkgOfeW8fg9n+ps/6xRzZoA0IH8t/wCLm/6mz/ro6mkoFSvowbtUm5R42b1q04is2yTC0rqlWiWDW1FsoCAqS6bNXMrN6zcpJTrVnZosDF60qjRxe2VV8H6IUi77PgZVNNj5SRSbzlwMokn4CBy+rRUlD9pO5TbZLicrvZm4sRE0oyHRB39allIk7H3BybeWlHOPRHAKwvK3Nc7k6iu4HSvX8FOvG04GddMhw60J3RY3Wm0ZVwg1J4rkrlI76jHY7JbZICWPaZC/NoBo6vEGmir3tDazTuGXgPqtG8osvOyxxucGamge81Jpua34BPXZsQy0PZNaGkRt6MZJq/rcNw6hqkvbKjNJa7Au4NkJ71l5V9YrOD0yMyBuYN569AiXaqZ93MZYrDAWMflibnJK7fV2v87hkuh2idkLKDCxrG1OjWMaN7juHVv9o5rf+0ptVeSBbFmBIRSSUdXoR8G6nfwXJSbf6EpWwKksJcfnHB7t4BqxvVX6R9ism3aWUxN51KhulBxdw7Pcpdl2jgMhc8sY8A1cRTMZ4m7i7LtzyVXfF8tLeUlq2M/2cQykm+s70Wfzmcl0UrWv5ZTSj2YfEHBz3SBkbenKaYR1M4lNXldrnOAZkzDSueNw34idK8B31Ue7LltF6OEkp5GzNPNoOaKatiaem7i4+O5EF+us8LY4YpC0gBmbnOcODi7c72DLRQ2lpFRd7kCFsswZVrc8OTiAaAn6JOnco3ydhGJzqZ0axoxSvd6LGDu5xoO05K4tMMs7+QhAa1vTfo0d/wDNTXIqwi+T2FuJo5SU5YzQEng30R7fcsNnV6K6w7K1bitbuRiyPINdWR3Dln8erwDU1el6sw/J7LGIogc6ZF+6mW49dSVs+eW1upqfRGg7AqK+bVFE7BG7lXDpltMAPAP+kda0y0zOdDVKyU97LfZmSFs1ZqAUJa8uIDSATn2iuvUs2/aqJhcyzsBZ6RBq7rpUZdRqOIQyRLaXCoFBQUa0Nb2k7yd5OfuVtZLlpu8K+/UrMi0pS6ItrvaabKmWoFKgHiGAYW9zQmORlf05XU4B3uAyV2+ysbk5wHUKKstALXZEje05g8QQstsPjUexi+roMMDiRR3NqDm8VcKYzuPV40XrWy9Bn2W+4LzjtW6I3XjBxSSCNxp9E4xixHjUEL0fZ+g37I9yciSejk3bHEkklzMEkkkgOfeXM/gwnhPAf00X2h9Sg7y8/imQ8JYT+mjGzNrmV0h7JY7DHQKj2htdAQrq1z4Qga/LVidRduKNu2RN0iLd0WN9Va251G0C0uuHC2q3bEZH03L0N7OaFd1loMRVFtFPuRnaYsDO5AF785xXNO2U1Rvs3cJmdyjxzBp1ovnpGOzQIa2YtkwOAZt69yuLY173EH+ACTbSK40mwdvm1ukdgbmXGn8ESWCFlhs2I9Ij2pm57paHmV+jdFS37eBtU2BvQakVSKk85V4Rc3HFIZWTyZNqSGubWoO8V6KNrVeIw8zU7+H8fYPAEBubaR2L5O9rpcOUbhTF1Ncd469e1W972x0UedDI7IAaN7OoLm4ZM2UqKLae1md5s7XHBXFLznEF24exC9/WnCOTZlln1Dgrm3SiCOur3acSTqSqO6ruNplw4hlzjU9Ij91UkvCLg6Vg8IOTwvcyrjnG1wOE/XdxHVv35alGz2xRmPyq3E0NCIySHP4YqZtbwaKZcBmiKaGKjA8YbQwijSC8SUpTI5Uyr1ZrfaO+S0ChIOpAwuJJBFM9TU5dmfBRJ1pFx472QNp73bHHgbzAAGgNAB6mMAyGXh7w+x2AyEyS8xni77La6nid3sVh8mxVnnNAKgVNQOLWek7if5FVbr05Rwa3mt9wHuWJWbKo/v8A0S7fe4Y3k4mhrRoBp2uO8oPvG1kuJJJP8+CmW+04ubHpvd8PiokNmJOFjS5x4Cp7vijV9HNy9jT7VK4YaluIYSG1Dng6tNNx4b1a3Rs5WjpBQbmj9549X/4o8VkZEaveXSGoZHGMRLiKUy6Xd4ojs93TwR1tFYIXHIuw8o40zbHHWpJ4mjRx45RUKk7kaSOjiFAK00a0fBZstlntOnzbOrX87f3eKuLhuMWkCWgENSGtBq5xBoS8/wA9wRT8mbGKUqQOiNAOvgP561qjZ6M/ANWK4Y4hXCCRq91Mu85BbWmIE1bZ+Ud6bwI2Dqq4F57MIGeqfvHaWGPLGHEbmUIHfp4VPFD1s2uc7JtG9wJ8XZforcSHOK/wpdsrfOWus8mBrasOGNtGmpBGZ5xz4ncvUkHRb2D3LyhfkrpgHuxEhzBVxJyx5AV0GZyGS9YQ9FvYPcuc+zhJ2zdJJJQYJJJJAc88vH4nm/zIf2gRviDQgry7/ief7cP7Vqsm2t2HM7l144ZESdG9826gKF4Ryj6p28rSXmgUu77NhFV7YrFHFu2SzkKBXFzWPCMRUO7rIXuqdFd2iZsTc8lx5JeEXFeSsvyTm0QXNZS49qIbfahIeaqq1z8lQjVbCIky8uC6MDdM1rtFbWWduep14pq69qAG0e3vCE9qbwMzyd25FCU576NTUY67LW8r/bJDghy4pu4bmq3t1KFbMFZXZfssD8uc3e1dZ8brRMORLTDe6bnbCS+nO3Kut0TsTpZBkK0HADcpt17SRSmj+Y7cCdexWD4+aZDwyHUvM5uLo7KF7ZzKdrrRI57smj2DcB1lTLFZG15Rwwsj0INDXcxp4lSLTaYwcEgwVcSHAZCvFqYvKfE4RsHNaaMaNXE5Fx4kqkrRV0yVZJcTnSONXkdzGjgeHWojLA6YPtBDjEyuY1cfRaeJ3u3DrVfflqwMNmYc/wAu8cR+SaeA38SpGzu00scL7OGNLHAhpJPN+tTefeolFHRcroqGB1qc+WbmQQg80ZDLRjeHWdUPGAzPJAwt9gG4fwRNaZYn/MSOLG6tcDliHpjQg8dxT81ms8cePHhjbqMjJi9EDRzjx0pnoFqVka7YOxXU2hJPNHSceiOAoNSaGg6juBUcSGSrIaRxjJ8hGXZl0z9UZaV4p612h1oAc8clZgSI2Amr6dKhOugxSHWlBoGtjWu0Va1rQA0ZAAUAHAD+a71ktER/J6LSxXvDYv8Ato8UpHOnko53dw7Bl2re7NnrVeD3WmR7qEEMdJUl53Bo+iyvDwVTYnsEjHuZygY5mJhrRwr0e00K67fO0EFnha6NwaHNBDsNCARUNYz0qeHuaKSrYOXCyW7GysmdG4vo5sbHOLmOpQucS2jQRTjoMlTXrbZbS/A54AOkdaN7XDV3a6qjxXrNaZqQQ1Bqc83u4ucTk0dZ8VEvuwiMBzZWyTufRzY842ChqA85vdWgyyGa1Ua7fRGtthLHlhoSOvJMSxCNtXGh3NFAT2E5nwWLJdkryS6TDxDTSg+s/d3KW+74Imupz3kdImneN57T4LaItkG1zskhORBbJDQZEGr8yT1U9vVn6sj0HYF5NtYa1rQ2pJkiB4ZPByrmfYvWbNB2LhMpttmUkklBgkkkkAAeXUfge0fbh/asTNsvBuEUO4e5P+XP8TWn7UH7ZiAm2pxAz3D3L1/FjdnHldBhdlnxnEVZ2qZsYQZY75cxYt18ukFF6XBtnJSR0C7L+hDaVAKqb5vTl3hjDkgSN5J1VpYpSznArPqSdlZt6DWzWIRsqUL3lLjkoFvaNonluFRbGwk1KRi1tmNkyOLJUV6aooc2jUK281eriSzWFuSzYhV+7vTuGjVVyOoclTVhOg82YuTlJOUeMhoiu1AOOEaDVc1uHaieHmDnA7ijWxWlzInPdq7MrwcvHJM9kJpoDdqX0nBZ9DMdoVVNtKwY3NiwTEUBBOEE6uaNzqV7FcXjFia+Q76oElbV/euuOMTkpXJlt8lEoFHBg3gk1pvod6sW2AMYXnJoGSr4xGMHKAltRorO/rxjkYGxGo39XUplFlxkqBG0SYnEnimPl7AQyVuJmIHVwzG44SDTXTPMreUZlVV5R6FSzGy5t9o5RpcaVoAAAA1rR0WtaMmtA0AU3ZHZaa8pMLOZEynKzEZD6rfSd1eKxsfs3LeMrYm1bG2hmkp0W8B9Y7guv2+8ILviFjsoa1zW1oM8AP038XnXPtUtW6XZqdIpr+vKx3LB8ms0YfNSuGtTU/lJna16vcFzIma1l8s8uFgzllI5rRqGMG88Gjv4qvktBdJK5zi5xe4lxJJJJ1JVpa77hku0WVzKyslxMIFBhrixPO85ltOoLOi412xh16l4EFmaY4Tur87NT6cz9zaVNMhTgNW4+cS1ho0D5yWmVPRjHDcNCeoVTN2WqMCUO0fGRpzq1BA7DnXsCixWzk2OaM9COAOhNOOi1e2JSfROmtnObG3JtchX2uO9385DJZmhIzVbdbjI8vOQGTes7yr6PPIq4/kiOigtj+dGP8SP9YL1uF5KvKKk8I/xY/1gvWy8/J2UJJJJQBJJJIAC8uX4mtP2oP28a5zH0R2D3LpHlvbW5rV2w+yaNc2h6Lewe5e34nk4c3g2WFlJe04Ca6idFoKZWEoWTrI4E5ohsYG5CkFaoquqEgVKiSNTJFvko1CvSerm+59yrLHFvSK0GZtJo1VD1Y3g7cq0qgXuy1hxvxkZBEt82mgbGN6Erqvp0OQAIVxd8xtEmMjILjKLcrfR1Uko0ja/SGQHsQHBHV47UYbXzZBgVXddhzBRqzIuiJekOEBQbOr/AGmjDWhUVibUpJGxeiAY6votpbE1z2tc4NqRmQSPYpUUXzhUa8hV4C5Y6Kb2dbt94Wa5rDGyzFr5JBWM5EyOpzpX/VHwC5JZ70eXSvc4ue81c4nMniU66yOc9rMVObQFxNAOA4aqNPYDEXNJB6wajNRFOLLe0VLTR3aaqVZ7uL8RBy1cdzR1nj1La6LILTahZ64Ca5nPJrcRw8TQFXe0F5Qwj5HZwKNryjga0O8V+k7id2nZNpBbQL2x7WghvZ1kqJFG52WpKtm3E/kG2sloY5xDWk0cMyA7PWtD3Jm7pgJS3dTI+9ZVvZvRGsshbJhppuRBGaioVTZ3tbaKuGVCsNtrsLgwGueg0HFVF0Ghi1y47REdwmjA/PFV66XkKJnztnrqZoqDqxgVXr1cJ9lCSSSUASSSSACPLQPwPa+yP9qxcxs/Qb9lvuXUPLKPwPbPss/asXLrL0GfZb7gvb8TycObwOJJJL2nAwkkkgJNiIBFUSMt7Wt1QkCtjIeKxqwTLfasTk5FawAqwrCActMuIphbLC00zGM0Y3E5jGaiqE7MypVuG0ClgiX1Jjl6lb3dBQBVDY8UgRJZo6BTRV6BvayTMBVlzR1cU7f8uKU9Se2eZmSs7kb1EiyRYXvPBUpNXgniicPhxPEhPchyZoDzh0rkucyoeybeUeJ+W5rUPWhtXkYiKVNM6ZIkszyHPJ3tp7FTWmDVRL9DaVbK6JxDxI0kOzo4EgioIOY6iR3qPZQMVDvNBw1U1zKDLco9jjBFTri1XKtlJuiz2ktmPk2N5scYo1oOVaZu7SqexsJfUcFJt7q59yxZXcmXZfRyR9lJis1OULnaCpPcpN3Ssq/HzXOIIBBAw0qKE9qjWecROaXsL254mh2EkEaB1DQ58CnrytgmkZV8jmMAbGZAzlAzWjsPSpUgGugGmgUPs9G0UVXWd51daoAOpocaL1evJFhmLprMP/lwUHAYiKL1uuMykJJJJQaJJJJABnliH4Htn2WftWLldk/s2fZb7gureV8fge2/Yb+0YuUWL+zj+w39UL2fE8nDm8DySSS9xwEsLKSAwkkkgMJLKSA1WFssIaS7C4A5re3WngoNVqVgLa5SK1cVOvG8Q0HCUNtcRosPcSpZQxO4uJJ3q+uOKkbnKjLU6Lc5rcI0WLQatEG1uq9x6001lSBxK2ArmpNgYOUaXGgBzXKrZ16RtelhMAxB5JdxVA6FzzVz6jginaO0MlbzHA0Q0HEZKZLZMacdidZgGEBR4oCG08FZMFQnhZ2tHOOoyUuOrL1aRTWXnAg6hZgixPoU204ZDwKm2SlarmtlvslXvdAhjjkDql2oVO6A1r1K2vgl3JCqbtUWGPF1e9ZVplOk9FTdbP6xZDxtUH669dLypYLNSSwHja7N7Xkr1WuU1TMTsSSSSg0SSSSAEPK4PwPbf8sftGLktg/so/sM/VC635WfxRbv8sfrtXILulbyMXOH9mzePRC9nxO2cebwS0lpyrfSHiEuVb6TfEL22cDdJacq30h4hZ5VvpDxCWDZJa8q30h4hLlW+kPEJYNklryrfSHiFjlW+kPEJZhssLHKt9JviEuVb6Q8QlmmVghY5VvpN8Qscq30h4hAIhYIWeVb6Q8Qsco30h4hYaakJuRid5RvpDxCxjb6Q8QpZtjDYk4GLfG30h4hZ5RvpDxCmirIrLDVwoE3etiwOFFax2loHSbXtCg260h30h4hY0qHbREsy3tAMxOEdELSN4rqPEKS+84xiAIrSm5T/wAmy7RRhg5RlRUVzV5etpicWtiZhoM+tWGxVks8jnOmc2taNBcFD2tijitTmsLaUByIouMTrJ0U1rkxOAB0B7lm0iQwMLgcLiQHU4bvYtnxtoSCKkcQpdqt+KyRwUAwEmtRmtx7MydjRkBtF3BuhtdnPg8D9y9PLy3YTWe7v9ZZxu9YF6kXDldyKiqQkkklyKEkkmp5Q0Ek0AFSToAN5QA35R2Nku+0wudh5RuBppU4iQQA3ectFwIeTuT10fewfeXab3mNofjIOFuUbSD3vIpqcuxUswAy/ef3rqoo5uRy1/k/kFPnmZmmUdfGjsu9ZZ5PXkVE8X5o+8ulOpxoN9XfxWrYhTC3IdWW/hVMUMmc2d5PZAaGZmQqfm8h34qJxnk4kNKTxmv1f/ZdHaKA4qECuWZyz1FczROxxY6BocOoVrlXdw+CYoZM5iPJ2/P59goaGsZGdabzmnP6NZN08Zyrkwn2VqV0x7C0EPFSN1Cc8sgHZ1ronOSrpUUrlU0y/dlw3pihkzlzfJw80/rEYrxjI9hNdy2d5NJAK8uzujcfYDVdRMdBmMRqAMt5NBSuhJPtWxirmDQ50qXEV4nfTJMUMmctPkzkBobRGDwLD95Z/oyl9ezuicR4g0HeuqcmOFc6A76F1Aa0yyzPesiKtDmNOOQ37taE94CYoZM5V/RlJp8oirwwGv6yX9GUnr2f/U+nca0Pcurti0qATkK5jXLWmiTIa0NSK551yBAy01y9pTFDJnKP6MpP7xF+YfvJDyZSH8uzviePeV1fBT6NTvpUaAnWnVTtIS5Dgaa6115xG7iR3BMUMmcnPkzkz/rEeWWUbj7AarYeTGT+8RjKucbh7CarqzmAaN46VGgJ3DM5U71gQcDw1r9UcOAPeUxQyZyc+TWTL+sRmulI3HfTccu9bHyZSDW0RjtYfiuqPYADllQnKooBSug1pn3FY5DhnvoakZnMe9MUMmcpHk2kJoJ4zUVFI3U8a0Sf5NpBmbRF+b/7LqcjQBpw0rkKtGmn0q9gK15DdqBqDU5Z/wAPamKGTOWN8nEhrSZmWvzbh7zmsP8AJy8azxfmewDFmuozN3GtDTMV3mnvIHetOSz3GnHM1pr7/wCQmKGTOYs8nMhFRMynXGR41OS0l8n726zx90ZJ8A6q6bOK0HO7QTwPX1e0LUNqa5EUyOpFaaZpihkzm7fJ1Ify0f5o+8tXeT2UEDlG5/4RplxOKg710t8BJHSrrkTn7dFjKtDXxPx6wmKGTAW4dijZ7VZ5pZW4Y5Y3mjMxhcHAmjjQZL0pDJULmMEYPWN4zPiinZq2GOkDiafkia6egSQM+HhwWOPo1SClJYaVlcyzDjRRZTXVN3u2Qs+aeGuGeYBB6jkaIQtl+2mI0eO8YD7grjRMggtsTaZNb+aEK26PNNybVPOo9g+Civvxp1Yf0vgrsgakbuKTUjesW+I+MnwWBe0PqneMvwQDzc9c1IjUMXvD6p3jL8FuL7h9U7xk+CAsWgcBu9mYT8YHAeAVSL+h9U7/AJPgtxtBF6p3/J8EBaykBugrlTIZGuR7te5Jr6cPBqrHbQRb4j4vP7khtFD6o/8AJ8EFFsJOzwC2EnZ4BVPnHF6o/p/BZ85IvVH9P7qAthJ2eDfgs8p2eAVR5yxeqPg/7qz5zReqPg/7qAt+V7PAfBLlOzwCqPOaL1R8H/dS85ovVHwf91AW3K9ngFjlOzwCqvOWL1R8H/dWPOWL1R8H/dQFm59dQPzW7xQ7uFVgydngFWeckXqj+n91YO0cXqj+n8EFE+V/ECg1ybpv9lU88DgPBVB2hh9Uf+T4LJ2hi9WfF/wQUTpQDqB4BMvUQ3/F6p3/ACfBam/YfVO8ZPggHZFHOWQySN9Q+qd4yfBaG94PVO8ZfggESeJ8St4o6mu/jvTf/VYfVO8ZPgtm3tENIz4v+CAv7riFRUA9yJbPE3I4W140CAo9oQ3osI8fgpTNqpdAPY34IDoUT0+gy7bba5yKFrBvJwHLsARhEKAAmpoKnj1rnKjojErKhUtsucPOavliik0FDs03gsebLeCK6JUQAp5st4JebTeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5st4JebLeCK6JUQAp5tN4JebLeCK6JUQAp5st4LePZxo3Ioos0QFbYbBgVkAlRZQH//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMQEBAQEBIQFRUVFRUVFRAQEA8VFRUQFRUXFhURFRUYHiggGBolGxcVITEhJSorLi4uFyAzODMtNygtLisBCgoKDg0OGxAQGy0fICUrMCstLS0vMDctNy41NystLS8yKy82LS0yLS8tKy01Ky0tKy0tLS0vLi0rLS0tLS0tLf/AABEIALIBGgMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAQIDBwQFBgj/xABPEAABAwEFAAoOBggGAQUAAAABAAIRAwQFEiExBhMiQVFTVGFxkRQVFjKBkpOUoaKx0dLTByNCUnOzJSYzYnKywfAXNUNjdLTiJDZEgsL/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQIDBAUG/8QAMREAAgECBAQFAwMFAQAAAAAAAAECAxEEEiExFVFhkQUTQcHhFHGBIrHRMlJTcvBC/9oADAMBAAIRAxEAPwC8UISFAKhIhAKtPfWyey2NzWWirhc4Yg0MqvOGYxEMaYEg68BW3VR/SawOvRgO/ZqfofWVoQc5KK9dClSahBzeyVztf8Qbv493m9q+BH+IN38e7ze1fAqq7CbwHrKOwmcB6yvR4VX6dzyuN4br2+S1v8QLv493m9q+BHd/d/Hu83tXwKqew28/WUGyN5+spwqv07/BPGsPyfb5LW7v7v493m9q+BHd/d/Hu83tXwKqOxW8/WUnYrf7JThVfp3HGsP17fJbPd9d/Hu83tXwI7vrv493m9q+BVKbOOA9ZTTRH9kpwqv07k8Zw/Xt8lud3138e7ze1fAju+u/j3eb2r4FUJpD+5SGmP7lOE1+nf4J4xh+vb5Lf7vrv48+b2r4Ed3138e7ze1fAqeLP7zTSE4TX6dy3FqHXsXH3fXfx7vN7V8CO767+PPm9q+BU0SmFxThNfp3+CeK0OpdHd9d/Hu83tXwI7vrv493m9q+BUoah5kw1zzJwmv07/BZeJUepdvd/d/Hu83tXwI7v7v493m9q+BUgbQ7mTDanc3UnCa/Tv8ABbiFLqXl3f3fx7vN7V8CO7+7+Pd5vavgVFG1u5upJ2Y7m6k4TX6d/gn6+l1L27v7v493m9q+BH+IF38e7ze1fAqHNtdzdSaba7m6k4TiOnf4J+updS+f8Qbv493m9q+BJ/iFd/Hu83tXwKhjbn83UkFtfI014EfhNdcu5KxtN8z0zdt4UrTSbWoPD6bpwuE7xIIIOYIIIIOYIWUuO+if/K6X4tp/7NRdgvMOsVCRCAVCEIASFKkKAEIQgBVP9ItNz74otaC4mzNhrQSTuqxyAVsKtdkp/WKx/wDH/wDzaFenPJNS5O5nWhnpyi/VNGi7V1+JreTf7kdq6/E1vJv9y757jTpvc5xOEOOINbMATkNFDZL0p1ASHAQQJe5gkmdIJ+6V7HFKlr5UeBwale2dnDdq6/E1vJP9yO1dfiK3kn+5WCbVT4xnjt96mTis/wC1FuC01/6ZWxuqvxFbyT/ck7VV+IreSf7lZS56+NkdOz1nUnPrAiCQylSc3NoIgkzzq0PEas3aMLlZ+E0YK8ptHKG6rRxFbyT/AHJDdNfiK3kn+5dJS2a2cA4jXdzmlTGXBk5TVtmVmY5zCK0tJBhjdQY+8tfq8T/jM/oML/l/Y5M3PX4iv5J/uTDc9o4iv5J/uXX0dmdmc5rQK0uIaJY3UmB9pRnZvZ5aNrtO6biH1dPvAJxGX5CCDJR43ELemXj4fh3tU/Y5LtPaOT1/JVPcte4Kxbn2XULTVp06ba4Ly4Nc9jACWtc46OJ0ad5cDUbmek+1b4LGSxDkmrWOfF4aFBJxd7mKQoyFkOYo3NXo2ORSMdzVE4LJIUbmpY1jIxnBRuCnc1RuaosbJkBCaVM4KMhTY1TIimkKQhNIU2LojKG6jpCUpG6qktmXW5fP0S/5VR/FtP8A2Ki7Fcb9ER/RNH8S0/8AYqLsl8OfQghCEAqEIQAkKVIUAIQhACrPZMf1jsf/ABz/AC2hWYqx2TH9ZbF/xz/JaEREtjqLU0OY8OALS1wIJwgtIzBO90qC77LRYHCgGwSC6Hl+e9JJMJ97CbPXH+2/+UrU3PUYdtc44ZLP2Qe0aO4M+FdSTyN3ORv9aVjfYRwDqSqGyYSCWue7ON2XGCOCVPCzRoJCrfZcxrrxcHuwtO1Bz4JwtLWy6N+ArIVdbMqzBa6rXMcZDJIdTH2G6TTJHWu/w+/mu3L+Dh8Qt5SvzNTfVGg0t7HqYwQcQG2ECIAMua0mRnEZKamGG11ttDC3FUyqOLWzijUEGYmM1ry+l9yr5an8tZ1utTG1ao2txio/MuonPEeGkSvXcZWUdXo9dL+h5KlG+bTdaeg6uKfZVDaQxrcVPcscXNkPjUuOoAOu+tDSpMfhD8bgAMsgRzAzpz+hbe730zWpQyp+0Z/q04nEN4U1AarCG4m1jhaGt+tpZNGgypLKrQlUj5d2tFqnqb4fEKjUVWyer0exkbAaAbeNnID5xVdYwhm1PiN/g9KH6npPtWy2GOp9m0cLagO7zdVY4fs3bwYPatbU1PSfar4SkqVSUVyXuV8SxP1EIzyqOr229BpEpsJyQr0keUiMsneTDRU0olXRa7RiPoqB9JbNrZ3lILKT9k+HL2o8q3LKo0aJzFG5i6E3STwDpPuWtttm2txbIMb4nglI5JOyZvCsmatwUblkVAoXKJKx1RZEU1OcmLKf9LNol7/Q/wD5TR/EtH/YqLtFxX0On9EUPxLR/wBiou1Xwx9CCEIQCoQhACQpUhQAhCEAKrtk5/Waw/8AHP8AJaFaKqvZQf1nsH/Hd+XaEREtjrrewupVGgSSxwAGGSSDkMWXXktfdNnfT2zDT2uSIFUsMgYs/qyd7DqdZiAs29bRtVCtVicFN78JJE4WkxI001Wp2NbJBa2VHBv7NwZ9ViqCYOcxJGQg8628yyy8zldsyN9TxRuon92Y9KcgIQuCrXZkYvB7i2QNqJESCAxpIzyVlLS3jYqLqrnPpOLjEuFoDNAIOHbB7N5dOFrKlPM1fSxzYmk6sEk7a3OF2T21ldzHU25Na4YzTc1xBMta4lxxQN/+kJ1jq0qdtqOtIqGliqTtc4jusoMiBIgweFdu65bGQRDYOo7Iq5jn3aV9zWQl0huZJI2+oJJMnIOXYsZTUMlnazXU5HhJuee6vucHXq0nWuhtBqFgdTAdVjGTjkzB5/QsS66lOm7FXouqNjJocW7sZtBP3TlPMclYlK4LE1zXNZTxAgj65+oMj7STtFYow4WRwbfUjLTLGrrHU0stpWtbqU+iqN5rq9/wchsPqY7xpuhrcRqHCwYWiWOMNG8OZYFTU9J9qsW7rmslKq19FjA8TBFVxOYIORcd4lV1U1PSfaurCVo1asnFW0S1/Jx46jKlTipO+rf7DEhKUphK9NHnIms0F4BGWeXgKzw1o0aOoLW2Z0PHh3uYrNNUfveK73KktyyRMXDc9P8AQqUELCNUZd9r913uThWH73iv9yplJymcFzl8n65/g/lC24tH8XiP9y0V61JqvOe9qCPsjhWlDSd+n8FqUHmNfVKgcpHlQvWsnc9CCGOTCnOTXLKWxtEvT6Gj+iKH4lo/Peu3XDfQsf0PQ/EtH5713K+GPoQQhCAVCEIASFKkKAEIQgBVPspP602Af7DvyrQrYVSbKz+td3/gP/JroiJbHb2qqGU3vcYDWucTBMACSYGvQmWa0NdMSCIJDmFhzmJacxocin2qkH03scCQ5rgWjUgiCAsez3bSbjOBpxkOcHBpGINwgxEDLgW/6bdTm1v0MzEOEdYSqAWKkMhSpcP7NmvDop1BYFW+yyxur3kaTMOJ+1NbiyEljQJKshV7ssptFtqP2zA4bWQWvwuEMbnpIPOCu7AO1R/Z+xxY5Xpr7mkvm5nWYU3FzHNqBxY5ocO9IBkECNQpaN2m0251BpAL6lSCYjc4nf0KS2fWjd2hzyAcO21nPiRvSMs+BLeFlpmrVxVGzjfliEd8Y3l60ZyypSf6rPW3seXKEczcVpdaX9wr3YbLbWUHQS2pSkgg99hdr4VDc10G07YQ5rRTa1znFtRxhzg0Q1gJOZE8AzUlisrRWo4HsyqNyL5J3YiIbqo6VkYRDarcWGcn5ZAk72mSrOvGFoymk2lq/wCDSnhalS8oQcoq97en5Rs9idlNK82U3RiY6q0xpIY4GFr6gzPSfatlsOs2G20SX0z3+QcST9W7mWDUGZ6T7VrRd6z/ANV7nHiValH01fsQQmlqlMcKaSF2o4UxbM3djw+wrNLVg0q4aZidd/hEKbth+76ZVZbmkWyZzdOlPDFiutwMajPgH9E/soH7Q8Jj2qmpdJmTta5q+P2z/B/KFvmunT0Ln72P1r/B/KFeD1NaS/UYDlG5Pco3K7Z3RGOTHaFPKjqHI9CpLY1juXl9CZ/Q1D8Sv+c9d2uC+g8/oWh+JX/Ncu9Xw59ACEIQCoQhACQpUhQAhCEAKodlZ/Wy7/wH/k11byp/ZWf1tu/8B/5NZCHsdbbbK5tjr031HPJp1d27M7oGN/8AvmWp2K2TaWVA5204nUy0BjKeIFhAyfimc+A5Qt3aKQ7Gqsp7uWPAjC6SQcgBkddFgbHqVWmx4NM6sAFSacNDTk3I5A+3wDdUouOf1RyS1qJm2sb2uBLau2DITNMgED9wDX+4WQoGuqTmxkb5FRxPVgzyU6hGgKttlzQbxcHFoH1cl04e8HfRnCslczfWxU2iu+tjpjEG5OZUJGEAahw4D1rrwdWNObcnbSxyYynKpBKKvqcXf1kp0sGCpQeXCXCzuLmtnRpJJGLoyPAN99GjSqW17K7nNYalSXNc1u6zwglwgAmBPOugfsEJECrSBy3Qp1Z9L4U1fYUXPe41Ke6c45sqzmZzh8cy9FYuko2zvZ6+p57wtXNfKt1p6HM16FKnbabKDnOYKlLdOLXbolpcAWjMA5eBOpWgGm1jqlHCxjyHCnXxQKLmnMt0jOF0NLYSWvpvFVgwua6Ax+cEGM3JztiFZ1JlF1paWMbVaxu1Hcmq0tJmZOZlcuJeHrZZOTbitPv25pHfgquJwynCMUlPf7baa8mzB2N20PtVgYRhwtqBh2m0s20bVm7E9gByaDkd9aWpqek+1dldmx20MtFkq1rRTe2ztcxjGUqjdyae177yJ0zjOOiOMqanpPtV/CKtWpmdVJPptuzg8XpwgoKHX2GEphSuKjc5e5c8ZIE1xTXPUTylzRRHOqAKF9dNcVC4qbm8YIV9Y8PUoKjp19KcVE5Lm8UkNKjKkKjKI2QwplTQ9CeVHU0PQolszWO5d/0Gn9C0PxK/5rl36r/6Cj+haH4lb8wqwF8Qe+CEIQCoQhACQpUhQAhCEAKndlR/W6wfgP8AyayuJU5so/8Ad1h/Bd+RWREPY7WlWpizvfQEtAeQGbiXCQQCdDI1SWW8DDhUpuZhgDv3k65ncgjNpGYz3tQi8KhdZa5ALDtdSA8AfZMHPeWBcNNzduFJoZmzc1GkHvMzAMjPp0XSory2/wDvQ5HJ50jfoSDQTrvxw8yVUNAQhCAEFCQlAIhCEAN1CqOocz0n2q3G6hVFV1PSfavW8K/ql+Pc8bxjaH59iMqNyeVG4r2jx0Mco3lPcVE5DSJG5ROUjio3IboY5RFSPURQ1iNKjKeSmFDZDVFU0PQpCo6mh6ColsaRLu+gn/JaP4lX+dWCq9+gj/JqX4lX+ZWEvij3wQhCAVCEIASFKkKAEIQgBUtsutlOjstsdWu9lOm2icVSo4NaJoVQJJyGZA8KulUH9OWxW12i8WVqFB9RjqTQHNLe+bqNctUB3dk2V2N1NzbXbbqLztgDaNp+qLTAZik4tJlSWjZPdrnAm2XY7JuJ77U6cQEZCTIzMZrz6Ngl48kq9dP3pH7BrwETZKmembPepuyqij0FT2T3c3MWu6wc9LW8dGfTCns2y27pO2W27gN7Ba3Ez4SOdedhsGvHkdbqHvSjYJeXIq/ij3pcnKj0j3WXRy6x+df+SO6y6OXWPzr/AMl5wGwK8uR1h04B7SjuBvLklTxqfxJcjKj0FV2W2HF9XbrBgx547SycGXeyf4vQg7LrFtgi3XdteHP/ANTTx489M4jRefe4G8uSVPGpfEjuBvLklTxqXxKczIyIv+lsuse21MVusG1wMEWihMwJk4uGd7gz1CR2zCybXUi2XdjAdtYda6WFxg4MZGbRMTEqgu4C8uSVPGpfEjuAvLklTxqXxKG7u4ULF5HZhRFmJ7Mus2iRAFrpFmDEJdJLd0G4jvCQEWS97pNNhq1rqFQtGMNq2fCHxugM9JlUb3AXlySp41L4ln3VsPvGjtodYHPD2YSHOp7xDgMniBiDZ6FaNSUdmRKlGW6uXR20ubjrr8pZvek7Z3Lx11+Us3vVFO2A3kST2G8TvB1KPBukncBeXJKnjUviVvPnzfcr9PT5LsXt2zuXjrr8pZvemm8rl426/KWb3qi+4C8uSVPGpfEjuAvLklTxqXxJ58+b7jyIcl2Lz7YXLxt1eUs3vSdn3Jxt1ePZveqN7gLy5JU8al8SO4C8uSVPGp/Enn1Ob7k+TDkXj2dcnGXV49m96htFsufC7a6lzYo3ON9nw4v3ozjoVJ9wN48kqeNT+JNdsFvEZdiVfUP9U8+fN9yfKhyLtpWy54Zjfc2KN3hqUIxx9id6Z1UbbXdEMl9yzO7IfQgNz70HMk5a6c6pXuGvDklbqb70h2EXgMzZKvq+9PPqc33Hlx5FyVLZdOcOuzU5Td2Q3vteBS2q03NhqQ+6YwOwgPs2LFhyjnmd/gVMjYHeOvYlTxqfxJDsFvEf/EqddP3p51Tm+5Plx5F+fQOf0NT/ABantCsNcR9Dt01rJdVKnaGFjy978BIkNdGEmNJA0XbrIuCEIQCoQhACQpUhQAhCEALU39XommWVZzzaWwHBw0c0nQrY16kA688Lm7zOJ0y+N7Kjlzaf1QHLmpaN6pZxnAxU3SeDSpqp7HUqh81nUnCCAKbS0ySMzLjlAKyjZi0Pc0PLnHvnCnAaYEkxk0NGgiY4SSlczHTMGpDhm7CKcgjUEtkAjfHgUAnp3g3g0MGHN1iY14CFOy9WDUeszXThWBUpxhgEMjvgxhJc45Mphok5Akno1ziV9DdNLseU4ZDNTGeHDrlHNPOgMG9a1d9Zz6FSixpDRgq03OdiA1lrxlnwLFDrZx9k8hU39P8AV5j1Lb0mEOh2MEyQ1rGkhmIgOcQIExO9wJG0dy5rcReSTB2sjFMgkkaCR0ABAanFbM/r7Hlr9RU+alLrYNa1k8hV+atvtWJpaDUMGHbkAEtccTZIM5gtMHh0S1KejhiwhpLnltPQYYAgAnIuP/150BqAbZx9k4f2FTTL/d5x1oxWzTbrJ5Cr81bp1IZOJqxEZtY2DOmEt9vAkw4TLi8A5NwsaTEAyQAQBrvIDTYrZx9k8hU+alJtmu32PyNTp41bk0Invy7UAimZdJwnMZEmQhtP7Dscg5tDW4S0O4YOogxO+gNLNs46yeQq/NRNs4+yeQqfNW57HMBrcZIAJBFOchA0AkmIzS7W127mpud8sYIyM5FuhDp8AQGlBth/1rJ5Cp81IHWzj7J5Cp81bvayCXbvDwta0mRhAyAMzLtBvJtKziJGOHQRkyCS3UZCJAnLnQGmJtnHWTyFT5qAbZx9k8hV+atvUonCWVA/MwNyMJBiDIBLTuozOoyT30X4dzjLoJ3TaYBIGkgCJMZ+hAaM1LZx9k8hV+atxdFudSpFtYte8vJxUwGtzAhoDnHgO+lNIF/+riEzuGglhyg7mHAHDmNMvC59J05Y8JkHcMkGJBj7QyiBwhASPvVp+y7xqfvUDre0nQ6wd0zXWDnwEdaShSbBLTUw4jALWCHRm2CJGhMc5TmUHS7Hj1yLWszbA1BzaQZEdB5hINO11oa0DbbNAgAlj+gScfQs66ah21vZRY5g3qbcMu3sUuMt5llmkMw7HB3iKeY6lFQplp2p2MmJpncEvpiJkkTiBOfMQeGIB3VntDXgFum90KVaW6qkBrd2eCdrgDwR/VbhjpUgchCEAqEIQAkKVIUAJrjvBJUfHSsO12VtZuF+Y11OR4UBHa6b3EDARwFtas2Rz4WQtXbJFTasL3ODQ52G1VTgacgXTESQ4xmcis6ncVBv2J/iJPtUVqu6kG4QxoE4oAAkwBJ4cggNdUssy1zCQRmHVqxaQdQZEHoUG1GpUdGINYSHBteuJqGDhkQAADnG+Yygqd1gp/cHpR2GyAMDYEwBlqST1kk+FQCGk3G+Ax8sk7vsoCTLZa57ImCc25weApbJSNSagxFpyYBaK4GADvv3pOIgxphUvYFP7g9Kc+x0zq0aAb+gyAQCNspBO5O6jMVa05aAvAmMzkTvpnY5psLn4id8i0V4xEwGtB5yAOHJPFhp/cHpT2WOmCCGCQQR0jMFAM7EeWQ1uEkQDt1QYZ+1Dcic51z4VIbGYiCf47RWdImcw6Z8Kio2RjsRwNjEQNdG7k+sHeCFL2Ezi2+t70A2rY3ugAEakxXridyYAwxG6jqTnWRxIOHhGdao7IxpIy01CXsFnFt9PvR2Czi2en3oBrrG/FOcCNz2RaM++xTvb7I6CndhmZw78/tqk6R30TvI7BZ9xvp96XsFn3Gen3oBrbI8EndGfs9kWiBnlHg5ghljI+zvAZVqjdBE7kZnTqS9gs+4z0+9L2Cz7jPT70AylYnN1BdBBE1653m5EOmd0D6EPsm5AwkCWjcWisIEjQCI6Andg0/uM9PvStsTAQQxuWY11Gh1QEFms5dTYSA/E1hk1qpBOTg5ocMswDwpatkc7vQ4FpBzr2mDmJadJBAInOJUpsLOLZ1H3qFtjZic0sbvEa96REdYPWEAlengwlzDrhx7dUkY3NEF3fQThy0yHAipY3YgRj3w5u32mIjJwOgII9JUosbBO5GYgjhB3kzsGn9welARGlhqBpY4F+h294D3NaPu6uwt395p4FLtB0wu84r/ANlL2HTgjAIMGOcaFM7Bp/cHpUgYxhc9zML2uAmHWipm0mMQ4dPBInUJ5sDqjcOjgcTX7e57mPggOEdJBzEgkINjYQBhGUxzTEwfAOpFG6aJgFrvKVPeoBnWFrqrSA0h9M4ajBa7Rk+AcgRoQZB3wVt7IXQJbA3t29x8OJoKwaF1UiBjYxxG5a4t3W1gktYTvxJ/uUC4qEzg8GJ8dUqQbgFKsdroU4MoByEIQAmVHQnrV3tc+3ubUbWq0nNaWjBgLSCQTLXAzoEBlEoBXP1Nj9rHeWuf4msb7GlM7SW/lLOsfKQHSErGtIkLS9p7fymn1j5SO094cpp9Y+UgJ3tTYUfai38op9bflI7UW/lFLrb8pASQiFH2ovDlFL1flI7UXhyil6vykBMAkqEgEgSYMDhO8FF2pvDlFL1flJe1N4cop+r8pAZNJga1rRvACejfT1h9qbw5RT9X5SO1N4cop+r8pAZiIWH2pvDlFP1flI7VXhyin6vykBmwjJYXam8OUU+tvykdqrw5RT9X5SAzYRCwu1N4cop+r8pHam8OUUvV+UgMxCw+1N4coper8pJ2pvDlFL1flIDMlQ127pjhzg/wkTPWB1lQ9qbw5RS9X5SO1N4coper8pATEJC1Rdqbw5RS9X5STtReHKKXq/KQEsIhRdqLw5RS9X5STtPeHKKPq/KQE0KegzNYPae8OUUfV+UjtPeHKKXq/KQHRUyn4lzXaa8OUUusfKSG5Lw5TS6x8pAdKSnU3wuXFw2/ftNPwR8tZFHY3aD+0trhzMp056yP6IDpwlWNd9jFGm2k1znBojE8y485KyUAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEB//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQSEhMQEhMRFRAQFhURGBUXFRgXFRcVFxYXFxgVFhgYHSggGBolGxYXIjEhJisrLi8vFx8zRDMsNygtMSsBCgoKDg0OGxAQGjclHSYtLjcrLysuLzgtNi0wNTctLS03KysyLS0tLS0tMSsrMisvLS0tLS0tLS8tLS0tLi0tLf/AABEIAKgBKwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwECBAUGCAP/xABQEAABAwEEAwoHDAgEBwEAAAABAAIRAwQSITEFQVEGBxMUFyJhgZGSMkJSVHHR0wgVIyVTdJOhsbPB0iQ1YnJzouHwQ2OywjRkgoO0w/Ez/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAEDBAIF/8QAJhEBAAIBAwQCAQUAAAAAAAAAAAECAxESMQQhQWFRsSIFE3Gh0f/aAAwDAQACEQMRAD8AnABVhAiBCQiIEJCIgQkIiBCQiIEJCIgQkIiBCQiIEJCIgQkIiBCQiIEJCIgQkIiBCQiIEJCIgQkIiBCQiIEJCIgQrSrlaUFwRAiAiIgIiICIiAiIg4ndlvj0dHWgWZ9GtUeabapLCwNAc5zQOcZJ5h+paLlrs/mlp71P8y4r3Qby3SDS0weL0PvLQos47U8ooPRHLXQ80tPep/mTlroeaWnvU/zLzvx2p5RTjtTyig9EctdDzS096n+ZOWuh5pae9T/MvO/HanlFOOv8ooPRHLXQ80tPep/mVOWyh5paO9T9a878cf5RTjj/ACig9E8tVHzO07fCp/m6Fby20PNLR3qfrUB2ChaK08EHOh1Nhggc6o64wY7XYLFfaagJBc4EGD6Qg9C8ttDzS0d+n605bqHmlo79P1rzzxt/lFU42/yig9D8t1DzS0d+n61Tluo+Z2jvs9a888af5RTjT/KKD0Ny3UfM6/fYnLfR8zr99i888af5RTjT/KKD0Ly30fM6/fYpD3LacbbrLStbGuY2re5rovAse5jgYwOLSvHNO0vkc45heqt6EfFFl/7/AP5FVB2KIiAiIgIiICIiArSrlaUFwRAiAiIgIiICIiAiIg88e6JH6cz5tR+8tCiNS/7oofplM/8AL0vva6iBAREQEREBZL7BVAJNN4DczdOGZ/ArGWWdJ1ojhHxslBmaONSjevWVlUOOVWm4w6mSJBYQ4QSQWzdOsGBGJWslVz3OdTdecbxAZdEul2DWgADPACAs/QotNpqBjarwMnPJN1jTdGPputAGuApNte5ynSs5q0X1n1W0wLxdLg4wbggazBgeSFbjxTafSrJliv8AKK6ehngTUDm6oI9ax6+jnNxEEBdDVqPIhxcQNR2wB9gA6l8lvnpKTXTyzx1E66uaqUy3METjirF0NosZqXQIhuEZYE5iNYJOe1aqro94wgzMR1nEbRgvMvE0ttty21/Ku6vDDRfbi7sNc/3K+ThGBzUap0XUfCHpH2r1lvTD4psnoqntrVCvJtHwm+kfavWm9WPiqx/uOPbUeiHWIiICIiAiIgIiICtKuVpQXBECICIiAiIgIiICIiDz97osfpdL5vT+9rKHVMnujB+lUvm7PvaqigaKq8Fw10cGBf8ACbeuXrl+5N65ewvRE4SgwkWZ72VeC4e6DTwmHNLgCboc5gN5rS7AOIAJI2hNIaMq0I4Vt28XDwmuhzYvMN0m69siWmCJEgSgw1lWTR9Wr/8AnTqP1c1pI7QFs9yNayMrXrY1zmYXcLzAdr2jFwy2+g6pt0aKVWm19FzH0jgC3wcMI6I2K2mOLRrMqMuWadohC9n3FWt2dNrB+04fY2T2rJobha0/CPptH7MuPZgplqWToWnsdanWqVabJv0HBrgRGeRE5twInoK0Vx4vLLbPmnj6cxYtFig0NpggCJOska3Rnkto3SFZs1eGN+8DdOJJiLwwgYYLfnRo1hc9uvtTLGxpAvVKk3R4IERJJOyZgbM1pnNjiO/DJWmS1u3MtRpOk2oS8j4R0EubgCdd4HX0hat1kW83O1hamEmLzTBjKDkfQcf7xW1dofoVlM1JrFo4RffjtNZ8OSstC65pOojsnFW6V0aA4gNvASBBN27iBJkgRJ9EdS7SyaMYHC/TBA6XYnVOMdgXN16UUqxGZLsc4g6+oEYLxv1a0b6Wr7ez+lW3VtE+nGUWtLwBTAkEQCcPKkk44ejMLbW3RdJodVc5jaTiGgkFzp2ADE5dA1SsTRjC8vBI4bwmyRzhGIga4E//ABW8AeFDawvHO6SYAGMxOILR9RWK0zu54b4r+PDBNlYXjgS50c4i7qGZwmMl6o3rh8VWP+HPa9ygSlV4OlUDWsbLHtMNAAaQ6AIzOIxzOCnzew/VVi/gj7SrcOSb6qs1NujqERFepEREBERAREQFaVcrSguCIEQEREBERAREQEREEB+6MH6RR/gN+9eo/suj30bOKtINfUtLBecXU7lOmXjmXXHnPN0SSIAJEEmRIXujR8PQP+T/AO13rUY0KFlcAC4h3BjWWgvDWEiTIkuLhMACDgc0G50F8AHVbQylTbwlJ5rMe0mpctVNz6PBtcWkC6XQxrSODGMGDq9LUHULKKNVzHVH2h1Vt17XgsDA01JBPNeSIOu4SvnpXRtnazhKNW9Ji6Thi7xSQCYESMxeGwr61tHWW5Wc2rJaS9gEzcAi6cNb3RJxhoOtBzykfei08aPGKDwXUyG1WiWgNdN12Ltstw/ZXI2qlZxQwu8OGMxaSQ5xIkQXGIbemREgRGvX2C31aDr9Go+m+IlpIkbDGYwyTVFo1jRPz909MtcRTdLdV5vV4M/iov01Uq1bQ60U6zGEQ1uLw5oaRAgNkiRMYwvvuf3c1KnwFqeDe5oqFrYM+LUwiOnt2rY1dz1nkzSZPX61Rmz0raN0S7wdNbbO2YdhS3WU4bNGuTAkhhidepcfu/tLLTdMcGWwG8M4NZGMxdJJOvqC2grPAgPdAEZnILA0hZ21Y4W6+MrwBhVX62ltI0l3j6G1J17Nbom0spOqmk2iTLbo4Y8zwsyGQDEQJ8UjWu2sm6IPa2bO8EtBJa5haTAm6QcQdRjsXItsbWTcutnOABPp7T2qhc9vguHWPUuadXWmu2OfazL0f7um6f6dfaNNswik8E4RebInWf6LhN11uuU+BbgahiejAknZmsx2kSGy4EuHigQD0h17ryXJaZfUrVL90icMdQ2KZyWzXrNuI9mPBXBW2zmWrqWkhwc0kFsQRhiNa6ShbBUY172RWaBJwkgZEDIA7MMVo6dgiSS0nVj9ZX0p04cHTEQNcRGKtvFbcIpvhu7VaCaWEYiJM5ZwBq6+lejd7H9VWH+AwrzXx5twtBzBA5u30L0tvaD4qsHzen9inBGkS5zcw6VERXqRERAREQEREBWlXK0oLgiBEBERAREQEREBERBBHujh8LZz/lH7xRZR0K1zGv4Qi8GmC1muJg38cXDp6FKvujx8JZv4TvvGqLqhr0adN4tFCHUw8NbUY54BAbdcMw6A3A/aDAfK16IZSAL6rgDlDGuk4yMKmGWvatfa6bGkcG8vG0suEdUlfS2aPNNrHl9JwqNa8BrwXC9ewcMwRdx2SF9NM6KNmqGm6pRqR41J99pBa10gwMIdr2FBr0REBbzQu6SpR5ji59MxmZLf3Z1dC0aLm9K3jSXVbTWdYSJR0rfaHAy04hUdawuJseknUxAAMEnGdcYYL6u01U1Bg6jr9JWGejnXs2R1Mad3YutmS+bqwOoLizpKrM3sfQPUvk+1vOb3dpUx0c/KJ6qPh2NS6c/t/qsKsWDxmjrH4rlnOJzJKorI6bTy4nqfTfVKzPLHaPwWLUtDNTvqK1azn6NIcW8JRN2nw0io0iIm6CM3/s5q2MMR5cTnmfCotAJAkmSNXSvWO9wPiuwfNqX+gLyTxe6aTrzHX4dDTJbjk4aivW+93+q7B82o/wCgK2I0VWtNuXRIiKXIiIgIiICIiArSrlaUFwRAiAiIgIiICIiAiIghH3QtO9VsoImaVT6nsUR0tHMOYI61LW/laRUtNENyoMewn9pxaT2QPrUeUNHOe0PHgHWM+xBqfe5nT2qnvczp7VtRo90wDOvHDDs6CjbA4yQRAzx6tiDVe9zOntT3uZ09q2nETF6W3ThM7epKliLYktF7AY55wMugoNV73s6e1Pe9nT2rbO0e4QCW87EY/wBFX3sdeuS29svfjEakGn4gzp7VTiDOntW3bo4mYLcM8fR0dIVKeji4EhzSBnzumNmOaDUcRZ09qpxJnT2rb+9xu3rzbu2evYj9FkRLm87LneoYINPxJnT2qnE2dPatxU0YQQ0uaHHIXs9eGCodFmYvMkgnwh9sRmg1HFG9PaqGyN6e1bhuiiZ5zZGfOH4jFVpaJnx8cdkYdJjWg0zLO0GccMQvWW96PiuwfNaH3bV5er2G666TJ6CD9a9N73FpDtHWVg8KhSZQd6WNAB6xB60HTIiICIiAiIgIiICtKuVpQXBECICIiAiIgIiICwtM28UKL6pzAho2uOQ/vYs1R/u80rfqcC082ln0vPqGHWUEYbs6pqPazEvqOJOswMXH6/rWur0CG3Q0CGxeJAjDNZ1iaa9SraSJZJp08Y5rTF6JEhxLj1Ba+3QHubeptIgkFjcJxAkjOEGDQaC7groLmtutIeBeOc45xOOKpQcOZQLQQ0YEVAJc46pwJy1rHtVRol4c0vi6BwTbuJ2HDXnEq+0htxlUupSGuAAYySdd9gMdEkQgrRcAWUXtDrt7EVAJcTABOU4DWqU3hlylUDTBcSeFAxMYHMDLavgXtLad59IOEnm0mzOxwbgfQQM1RhD6bS+43nXgRRjLVLRDh0IPuH3LtKoGnnucTwo5uAwJxA6FV3wYDXtab7rwPCCQ07TjzelfEPD2uY8sAmARSAN0GZBYBE7FkWO0hrnTwJAENJogAyIdIYJ6iiY017qH4MEOaCyo8PEVBIaZg4TgBOKPhjXG61zXuDmxUEwJGETIxPYq8LL3XuCLHA48FHOJyGThhkVax4YWNBplkGZpA6sMYvHtQkeLjXuutcx5BbFQTzTHNiZzxwVXw0PcA1zHRA4Rshzcw2JxxGpfK81lwNLC0ugzTBgE+U8Se1UrkUw4tdTPOmODa7POC4HDoCIXyOc8BpaWjmmq28DE4a5zwiUouHhwyHMALTVaHNMzrxnDYrrWzgw8h1OX88N4Np9BAdN0QSvg5zRLw+lL2tlvBtOIaMLpBDcfQgvpEEh4DAC2Cx1UAgzmZg6ti+9mrtuyGsEkyHVGThr57civnY7E6o0VgRJBaQKALcDBgAXTiM4lVpNmSH0sMP8AhwDMxA5mKC+2Unc2rcADIJukGW5zzcMlL+9tpcU3tYT8HXAb0XvEP1x1qN9DWdr2um4QCWkhgpmRGEgD+ys/cvXLA+zk86zugGfEOLCD0Yt/6UHo1FrNzmk+MWdlTx/Bf++M+3A9a2aAiIgIiICIiArSrlaUFwRAiAiIgIiICIiDB03pEWei+qc2iGja44NHb+KhvSTy8PDnOmpMuB53OzM7cV1e+Fpe/VFnaeZRxd01CPwH2lcVaKiDS2qgGACneYGgNAa9wwAgTBxMa1obQXNJc17wXZkOMnZeM49a6C2FaK1hBrrRaHugOe8gGRLiYO0ScD0r51rXUcC1z6hacwXEg+kHNXVWr4kIPo22VDzTVqXcjznHDZE5RqWVRtJaA1tZ4AyADwB/MteAqomJiPDZcfd8vU/n/Mqe+D5wquPpLx/uWuRQmZj4+2ybpF2us8d8/wC5Xe+B+Xqfz/mWrRNCLR8ff+s60Wm8BNVxLTeEh2DhkRzsD0r4VrS94uue8tOYLiQfSNa+CvhETMT4fZ1qqFpBqPiIILziNmeIXzZbajQGio8AYABxwGwbFYQrCFIrTqkC7AIJvYicYiV97LXLSYu86Zw1GMPRgsYNX3pN2CVA3Oi6tRpJY+6XRMNactkjBb2x0DworueS+6WOMAXgSCAY2EfWVzlge4uHNIaPt9K6KyTt7O3FShIm95pfg6/AuPMr4DoqDLtEjsUmqAKNYtIc0w5pBBGYIxBCm7c9pQWmz06wiXCHDY8YOHb9UINiiIgIiICIiArSrlaUFwRAiAiIgIiICoVVEEY2rcDbC5zuGs7y4lxcb7SSTJJABWK/e6th8ezd5/5VLCIIgqb2FrPj2fvO/IsapvSWk/4lHvu9mpoRBCDt5q0H/Epd8+zVh3lq/wApS759mpyRBBnIrX+Upd8+yTkWr/KUu+fZKc0QQbyL1/lKXfPsk5F6/l0e+fZKckQQbyL1/Lo98+yTkYr+XR+kPslOSIIM5F7R5dH6Q+yTkYtHylL6Q+yU5oggs7y9o+UpfSH2SpyLWj5Sl9IfZKdUQQVyLWj5Sl9IfZK9u83aR49H6Q+yU5IghWnvT2puTqH0jvZrKZvaWwa7P9I72amBEERje6tu2zfSP9muz3C7n69jbVbWewtqFrgxkkNcAQ4yQJkXdXirqUQEREBERAREQFaVcrSgqCqyiIEpKIgSkoiBKSiIEpKIgSkoiBKSiIEpKIgSkoiBKSiIEpKIgSkoiBKSiIEpKIgSkoiBKSiIEpKIgSkoiBKtKoiD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTEhMWFhUXGBoYGBgXGBgYHRsaGBgXGBcYHRcYHSghGxolGxoYIjEiJikrLi4uFx8zODMtNygtLisBCgoKDg0OGBAQGy0lHyUtLS0tLS8tLS8tLS0tLS0wLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAgMFBgcAAQj/xABGEAABAgMEBwUDCwMDAwUBAAABAhEAAyEEEjFBBSJRYXGBkQYTMqGxB0LBFCNSYnKCkqLR4fAVwvEzU7Ikg9JDY6Pi8hb/xAAaAQACAwEBAAAAAAAAAAAAAAABAwACBAUG/8QALxEAAgIBAwMCBQIHAQAAAAAAAAECEQMEEiExQVETYQUicZHBFIEjUqGx4fDxBv/aAAwDAQACEQMRAD8An/6nNP8Apylcpf7R1+2qwlqHE3fUxeRYxCxZBsjnrTs6DzooQ0dbVfRHFX/i8LT2btKvFOA4BR9Wi+iQIV3AyEMWAU85RkdjifFNWeAA9SYJR2NlZqmH7zegi3OkeIpB4/rHJnyzUKBG0F/SLrEijysrErsfZgXuV3qUfjB0rs1IGEpHNIPrEwbZLHvCGF6XlDN+kHbBdwbpsZl6JQnBAHAAegggWIQFN7RSxkOogeb2pQBlAvGg7ZkwmyjdChZxFUtPbNCffQP5viLnduk5TCfsh4m+PZE9ORoIliEkAbOsZnN7ZKUdVMxR2s36QOvtHaVYST95UT1PYPpe5p820oTipPWPmfttpAzNI2uYlRDzlAEEiks3E4fZBjSE2+1qqRLSM6kmMdnzb61L+kSo/eL/ABh+B7m7LRx0xRt0yrrUXd7xveIMTrPUgCu6PBaSS5Sg4YoSMAQ2qBtrtYbIHVHqRGrahm3kl9HaNTaFXBcllSgxAUwBozFTM9dsRXfLlKKQpaFJJBuqIYpLGoO2JrQUxljd/mA+11muWuc2Cld4OEwBfqoxlcqyOJr1unhj0+LJBdbT/ARJ01b0AFFqtABqPnlkV3FRh8dvNJooZ6lfaTLP9r+cA2QvKTwboWiOtoizSfY5TZZ0e0m3OxEtfFCgfJUH/wD93aD4pL/Zm3f+SDGdmFInKGCj1MBY4d0SOSutmky+2Eo/6lmtHKYFeVIKkdrNHnxSZyftS380kxm8m3TB7x5sYOk6UX9U8R+kM/SRl0Gxal0Zo0vtdo40SsPsUlSPNSWh5PaKSs/Nrs43KnIfo8UbR1uvqEsy0HvClLkOU18SXwMXXRfs9TaJMue8o94m9cKCliQRdvAl2VXCsJnp4xdWMlCUVbC++mqwmSh9nWgK1hba01R4UhCvZWsYy5asGMuaUnCtFIGe+m+B19gbUkU+VI2XJiFjDdM27sOkU9HwxdsiJst1OSTxrExoc3SDviE0YpakG+XKVrS5ABISWBLZxNWINCpcOiLoaBY515IMSVktKkl0mvrFd0PPo0TCDD48oRJUyxd6icmtD5j9oj58gpLHkYGkzCKjGJWRaAsXVCv8wgJOH0DxIj4VD8+zFNRUQxDk0xbVB03T8pP8/WAJ/axAwHmP0jKz8pVioDgP1MJ/p8xXimq6t6Rg9SXk6Hox8Gizu2fLhAFo7bgYqHMj4RTE6HTmSeJJ+MPytEyxgnygbn5ZNiXYmZ3bYVZXQE+kCze10xXhSs72b1gPu5ac0DmP1jvlspOKvX9IAaHV6ctKsEEcT+kNqn2tWaE8n9Yb/rErIKPAfoY5GlJh8MknY4P7QefBBfyKcrxTjXYAIUnQqT4lKPEmOFotasEpRvp+8e9xaleKa32X/YROQD8vREpNbo5t6mHAJKc09QfSBE6GfxLUfL0EEo0JKGIfi59TAIcdKyB73QH4tCP60g+GWpXL9jBcqwSxgkDkIKRKES0Qh9J6WmCzzlCTdAlrLn7JbOMnCaRqvbqbdsUwD3ihPVaX8njLyI3aXo2MxxtsZCYUlEOBMLSmNTkPjiC9GUUII7fStazzfpyQk/alqIP5SmB7HQiJbtdKv2GUvOXOKeU1BPrLHWOfklWaL88HQ1eLd8Ob/lkn9+CuaJm6ihsPqP2MDW41jzRS9ZQ2j0/zDNsxjSeXfQGUY8jjHkQoOIVBMtUBiDLFJUtQSkOo4D+YAVJOTRqwy8l4Npll7HWEzZ4A4c1Ah+SAtf8A242j2c2nvdG2de0L8pswfCKt7ONCpRLVMx+bWEnaSk3pjbCwCdiUvipUTnseW+ipA+iZo/8AlWfjGJ545pSceidGvPujJQl4v7/8LiBEd2m0h8nsk+d/ty1KHEJN0cyw5xKNFG9rtpaxokV+fnS0FvopPeKP5R1giX0M10QkJlISCHSkXquylaxfe5ics5pFSEqZeKwm65Jodpf3fjB1l0rMRRYvDbQHypGV8sslSL9oubhFjlKcRRtDaVlrYBTK+iqh/flFxsK4bBi5okEGH0KhhMOp3Q5CiUstreiv8w+qwg1FIiUGDZVrUA2PF4q4PrEspLuZAdNJ9yWpXX9PjHqLfOVhKP4T/c4iwiyAZQtMgDKMSSOq4vyVvurUrO7zY/lhY0LMV45hP82mLJdjiRFqKbUQMvs8nMk8TBcvQ0pPujo8SV4Q4kwQUgSVY0jBIh8SwNkOGOAiAEFoSYWqG1KirQBQJhUM95CTOilAsKSY9vQL3seGbEoFlc9pE35qSjbNvckoU/moRRe7i19t5t6bKB9xCz+NSR/YYryWOEbcLqNHR0WPdFvywYS4UlEWDQ3ZS1WljLlsg++vVTyLOr7oMXzQ3s6s8tjPJnK2eBHQFzzPKGOQ3JlxYur58IyuyyyVAJBJ2AEnoIsttsE02C0pXLWhkJmAqSpI1FJUcRjdB6xr1jscuULspCUDYlISPKCWcNCJ4d0k76CZ/FbwzwqPEvc+UrGpljpHWs1jZvaF7O5cxCrTY0BE5GsqWkMmYBUskYL4Y4Y1jFZ5cxoOC1Q1HR0T2hOzE2cpIIIfBOCiDmX8Cd55BWEBuiRi5dCIsVjXMUyQKVUSWSkZqUo0A/mMWLQkpDlEuqcFzCGK8NVI92W9WxVR9gje0a+7mrsyNWXKWUlIoCtBKVKOai4IBOWx2iS7KnV5/GFZ5NY20df4Jhx5dZGMuer+xtvZROqB9UjyiK9iU3/opss/+naZieRTLPq8SnZFXhiv+yGdctWk7Ofdn3gPvzEn0TGH4Y/4c/r+BfxZVrPqv7P/ACae0ZV7TJ5m2+RKTXuZK5h2PNIQObAmNXBjEbfaTOtttnJWzze6TqXyUyRcJSMhecu2cb8jqLMUeWgI2W8fCVHcCfNWEDWmzIT41oSfo3nPQRNK0dMmAXjMV9q8OqWHpCk6EADBAScyAB1eMKaXc0tNlZuy8go/dCR1URExortNNksE3lj6KnUPxFiOpEF/0xAzHQq6E0hPyZqpBH82J/WGrIhbxlw0L2mkzmSp5Sz7q8CdgVgfKLAIyWbYDiT6/wAMGaJ09MkKuonJWn/bUXFMhmnkYfHL5ESxeDUUw5fAzEV/RfaiRMYLPdKOSiG5K/VosCcNsaYtPoJaa6lTUqGzMhsqEMqnRgOy2PlUN94IHVaIaXahAFuQdfj1E6IhduAzgOdpcAsD0rEKbiwrtIEINu3xVpmkzsPp6wg2uZs9f8QHNIFSZavlg2whdtG2Kv3884JHP9jHBc73lSxwBP8Ad8IG+INsixKtsMrt8QpQr6SjwDDzA9YaJ2tzI9Deiu9dibH3JdelBtjwW5RwHOvwER7DC8kcAr+1vSCJNkJL3Vq3hF0dTXzijyPsXWNdwWXoWdbbSu6QEoShKlE0DutmDkllD9ovXZ3sTZpGsod6se8sBhhgjAc3O+BOwErUnr+lPUBwQlMv1QYtyC2EdGEFSYP1E9mxOkFpEOAQ1LW8OgxYzsUEwpo5MN2iclIKlKCUpDlSiAANpJwEEA60fP3tG7IqkW6YZYCZEz51KlUSm8TeQ+ZCgWSASxFIvPa32oplgosSO8Vh3yhqDgnFXEsOMZhMts61TDNnzFTF/SUcBsAwSNwizhKgNRYrR1lQgi5U/wC4oV+6ioRxLq+zF/7IslTjF357d5ijo1SBFs7NzmUIUyJ9ik+0SzXNI2ilFKCx99IUfMmFdlVapiY9sFla0yZuUyU33kKL+SkxA9lV1UIpm5xM6XwOW3Xw/c23srNok8Irmg5vyftNaZRomelTbyUpmg9UqES3ZSdqpiv+1VfyXSdhtwdiEXm/9tWsOaVERz/hjqWSH0Yfj0NmojL3a/P4NZ0zbxIs86ccJcta/wAKSW8oybsrKWiyS61UO8USHLrN5yTxEW72sWz/AKDuUGtpmS5KSMwpV48rqT1iKTZWDBJoABwAp8I2al8JGDCvmbGjeVQqPKnmmOmoTLSVTNUDPM9KmDEyVbQBsw+Pwjy02VGE5aAMQFkeQUaxitGmivzdMBTCXKxoFKLD8IBJ8oTPtMxSrocn6MsJ9SCTXYIkbspKjclGbsPd3B1UlIPnDM1dqVgAhOQvAMOCbpHUw5OPZCql3YELDNOstNxsDMLf8y/QCEf0xPiWbzF2SGc7bxFRnUtSH5lkViZrKP0bqj+UP1POPFaMvlu8cZ6vWhLvDE/cq4gE6ej3U8zU8wSAOTx4nTlpl6sucUp2JJIHApDRO2fQ8tIGqhR+keGxRLHdhDxsWy632UK8wGgrIl0I8bYJMtrPAa7fvjxNjTUAAqy8R/aHO6aj3egPQV84zPULsbXik+oIu2Gu7jAlltSpgLgp2CpfpEguzAHMnbcfzVC0BIxdt6iB0FPOA8rfQr6S7gKrMTiFEfWYDzaFIkDdsbx+gPrD5mIyubmDn+6PUzFHBM1Q2JSR6N6QPmZPlQgWfZe4MEj8xNIUhDYlA/7gH5UMY8ElZZpBJO0k9Q0SFnsdq91CUUwKG6V+ETY+4NyAxZjj6S1nzWw84WLKrJMzkbo6B4fnotA8U0p3MBCJUyrKAmblKWofhBIiyxsDmhMqxkn/AEw+9RJ6AiHjo+ZgBLTl4G/5ROaNlgp8LPiEoKR1UQ8SAkAVZI6n1/WKtNBVMqP9NnP41N9WnnSHFWJWBJI2qWVM0Wgql/Sc4MGcvsAc+cPWiwyEoUqcq6lmLkgB95zh2LHPI+EKy5IwXLKr2P07JFnlS0zUBZWVLQpQQoBa1KUwUQ5D5PFvNru3fHrLKQWCgzPeJGCYoM3sdZZw/wCmtIP1VMv8pZXWIaZo632NR7sT0JBoqUSpJG3u0kgc0x1ttI56ymwSrcHAxJwao21UNUHc+R2GD5FqSpmOOG/eNojF7D2ztCSyu5msCGUnu11d9aWzYn3c4Km9tSSm9ZiEhtUL7xBAVeqmhcnEgYQuSajwrZeOTyXrtN2+s1lCgg99MD6qTqpOxS8H3BzwjHNM9p7Vb5g79fzYLiWmiEtuzO8uaxYLXpHR1olgFF2aVkqS1wXdcpCc/oZbYKsHYGRNTLVZ7QO8mKUnuyQbqUhago1f3Uhm94QzTRUprfx39i2Rtx+Qq0pNCxfKCzJShkgMWdXEwZL7NzRNMsMu6VYBQvXVXVXSQxDhseUR1vs06WFFctYJJyw3OKUw5Ru1PCoRpsU4u30A1ztcxYdC2liIqSFZxL6NnsY5mSNMa+GWL2lSe9sUuaKmVMY7krDH8wR1ih9nZrTG2xpExHyixzpOJVLJA+snWT+ZIjK7BNuzEnfC63RcR+my+lqceTw0bL2Sn0bYYJ9r9g77RiZoxkTAfuq1TyqDyiB7MWhlcQDGkpsSbTZZ1nVhMlqHNqGONpZenql78fc9B/6XDcHNez/JmFi098sGjUElRsslapocPeQRJlElRFboCqn3os67ZNYXQEcUqVTddZ6b4pvs0sHd/KFzEqcL7qgdih72e0jpF/lWxHuk1xcBL7ji/nG7Uv56rocDAvku+oNKdXiXMJ2HU5fNs/AvBMmyy00EtKCdwrxus/lCCZbFxMrQ0CQOZLf4hUuQo0l3iNxYbqszxmZoQ+ZB+jVqOEfEqPnAE+xzCdZZYnAkgV3Fn6wbOlzEJ10Iu/aUT0ePLFPlK1VSkp3spvL1cRFaA6I42QBheTuFDhxLDjCVoBNEdVP0GPm0TszREtyUuCcS5yDbaDdAZsYBqXOQAfm4o2+LKRKBZMmrA1y1Uv8AiIw5wWmTN2JP2gpXm8FoQpqskbw54Vr5R78vQKM7bn/5Vi24lFLmT0nao8bo6UhpCVZFI+y6z0TC/wCmSu8cygkPQkqWeq3pzESyLOEpOacQpNKNR3cu4ybjFVCK6DXJvqRkywkeO9XapMt+Tk9Ya+QJFUpSVc1Hi5UlMGSAVk3ZTkYtmd5o4xzeDRImgEqdNK6obdjiOZhqjQvdYDZJUxQd8CzBUtLdCtjuh35HOJZJG8uVtxdCQD1iUk2JPiQXKqkUBBUBVh8PODJdkURdJdKdxKRxNB1eDXsVb9yIlCakXVT1k7EISP8AkSI9TImkuVzQMr0xMvylpTEuUyxqlQpklzzDAJENJmSPdSs76D82PnBS9gfuR/8ATUkupV87nV+Y0h6UkJ8CU9XP5Xg5CKUlpSNqgVH86mMJnJU1Vlsg4QPygepg8k4BV2iYM1dCnzL+kLkyVzfDKJf3lKPWlG5QxYtBT5pKu+CEv7iTzAU9TviT0npSVYkd3LBmTGreJUR9aYrHk/QQ/Hp93L6GbJqNvC6jloXJscu/MYrOF0BydiRs3n9BGfac05NtC7ynAB1EBiBvLuCWzPlhCbda1zVFc1SyvblwBSxA3NAiZd4sD1ZuGVOfxEa0klS6GRtt2wKaigZQfdj1GHTo8GI0xa5JSEzCEtgo94DnhVvLDCFTklRYgFme7U9VZ8PLNhUsX6EpNfHUnfdVXzxg2AkB2lROdNpssqaB7xASeirwBwwOJhpFk0ZOrLmTrOc3cp/NeAHSItUkkqLd5v2ZE147cdtRAikC6QSQXa6B8TlwOWUSyUT0/shOUHkzZFoT+E+V4ekQ8/R9okeKVNltmkXk9UEiGWWhKSk3M3TQmrUOYo2ORzMStn7U2uWwvlaW/wDVAL8C1BzyNYvDLKDuLoPI1onTpQbybqlE6ygEuRyauVYlrN2yuLSZklakJUpTC6aqSQ9QTQl/Ca+TM3T1knKu2myoWrC/Lxq2DsodcoT/AEiwzC0i1LkqwuTKgHguv5ovLNKbtv2HLUTUdvYkP6ro21KIXLlJKpjudVSUPVN2hwGQzJhy0dkrGe8XJnKSlJ1Qa3gwrrVZyRyiDtvZO0gOBKnpyum6TyU6fzRDLlzbOaifZ2OOsE9aoMZ8uNzaalVf79ysZpO3yaDYtBzpCg02UsOAK3SScAAXBPOMy0/2fnSZ0xpSrl8lJTWjuBquzCJ7R/am0IasqckF9ZN08QpFH3kRNS+3yQgy5lldKi5wUxLOyhXD6tIPp/N4X3KuT2ru/sRPZu1+E4EUMavo7SokyVzlYS0KWeCUk/CKrorTWiZ815gCRcVq1STMvApYDBkuMBjWAe0FvJsKpSCyp60yU5+JVeOqDHE1WnrPHa+rPXZdV+p0KlJO4rnpX9GFdkE93ZJapySvvXmqIxHeqKrxpsbA5RYrXY7OEd4mmbhzljWv8MABJAMmRLSQEhJUkbAGfad8G3yJfdsFqusQMt5ow6j4RebuVnDiqVDdlVNI1FrI+trMMPCXPqIkkqShLTTrfVOPEAADnAdnKkJ7u8ATidm4HDmIlVS5UtAvS7yqFyGc86+UUfIQRCQs3lEXMGJIOwN+lRBMtCahCCOA5VDM3ECGVWgK/wBShI1UIFTjj/kQ7K0esJxuDEhyeZDs/WBQbELspLaxo73RTkdohtVjmDwHmf2wg+RJUGre3mj9fhHqJS1kpZuoHB8duECw0RpkXn7yrZOWfKFIf3AG3U9DE5LsksPmf5hDibMch5RHIPBSBahiU33LICiag1JLuwAc8BwEPS7KweYQpTEpDOkGtGAIy2HCPLXJMxiE+EkpUlYoC9CCKjcRnDSbPPepDkVMsB8cKvR9zYxrjAXKdEaLHawtZK0SwVUUMqOQDVxQ84kLPYSEsuYpajVSjiaZO9xH7sMoWJZBq9G1lKBD5M5oeABiQs1gCgKhnzF1L4VcuojhXbDWxSQuxzAAwDpxYXg7BgEqxYNjnwaHLWVLoosMkJwG47Twgi5LTqXgSzFKODF0pr1UIeE0DBJAoKgDkc+ZvDfFOS9ojRo0kbBvST5FyOd2ORo9IDqqdpFD94kjzEHzbSlNQ52ktTg7CEC2kkBKXKsMyemHpBoruGRLAq45Zfh/8oNseiQTeW7bKV45+cG2SxMxXVWzIHhgTvguNeLT95GPLqe0SJ09KtHdNZAm/hUgED6j0vcWEZhpGxLlrJnIXKJPimlsat3gosmuBIr12Vo8UgEMQ4OIOcaXGzKpUYr3ZBYF9uDDZUfvCSgPrpJ2MxZ8GAqM6t+2oWzspZV1SkylVrJNwVr4PAa7UxXLf2NmoJ7paJoNbqryF7HvJvJPMJEUcWXUkVGWkEEpXdyIBBYZvv58jDAQq6dQKBzPxCv88IkNIWVUsvPlmWAGClJBSK5z0i5e4KgVUimqoscHqP184BYAIS1CoK2YbMjlwA3Q3NlqSGBSxw25sM/Nt8Gzb91ikEbqvyP89QPMTLLBDg0fJtoYu3lhEIR82UlvAUnbgBzFITPleE3wrBhT4Z8s8zEjPlqCheUFHjuGYcGlHfPfA85KX1k3Ac//ALJxbz6QAgcxJCwQLgehBcjJyUB8M25Q1KSL/wA2LxqA4vPkGS1drEGDVSXUyCVHAP0DNV23esN2slSnKQMwE16HxARCDVitUyUo3ZqxQ0QSz4AcORiXsPa60VE24sAE64ultmrUk/GsQ6koCvmyWGZHwcseeUdMkFK2WysiBVsyLpIrka7olkJ5Fv0faT85ZSleJVLSSaYkmWxbeYesfZuxTC8q1LIIom8lwaYXkuc6b4qxTUhrgIwb0CvWEqsa0sah6g4PwfEQFJoJYtIdipge4tC9gWkp8w4PQQxoPQs9NrlInBaEIJWHUVIdIYEFykFyNhrFn7D2aYLPfWokLU6QaskUDcS54NE5brZLSe7UQlgCqoxVUBjuY/ehefK1B2PxRuR0iWSGBPduwbFRGb51h60TGoolskAY51IoIZE9CmIKgkFhiL2+gLdIKSqasNLSEpzIz5v6mOT9TdfgW90MWThRIqRsKlV5MYfkSCapDUzqduB+AgYSUoIdOttxrub9INFqmUIISk4OHPID4mA34IOLmCVjdJ6K3UyHQR7LtpUSyTuKsCM4HM6r1Obmp/DgOJhxkq1WBNDrOrJwXa6ORiEHEzwxIN8jIFuV4+mMOStIKaswE7HDPiAHqadYaRLAVQBWBdmAI8jljHLS5dNSaqYUO58+FIlIgYi1OwIAw3MBXEelIJk28AMAo7w6vOIlExTtdcDM5cEv/GhXeoOSzwf+0tFaJ1IKzyXNWKtlAeaSTk8PFSgwvpO5JvNxHunrEIbenAS1F8Lyv7QGMG2WRaFiiFAHeEj8L4cDG5MSyQE9AqH3lTrPC6kgAfehNotb4sRtUeguoYHmo8IXJ7PzD45iU7gCT8DEpZtBykjNW9Ss+Ax4FovRUh7PbGASggvS6hGB25D1guXLmqPhfeatyUABE6ixpSAwYHIC6/3RU83hSkszgvkAz9ME/wAwibSWRtn0WpSqHEVNacD+wiasdgRKGqKnFRxPPZEDpjTs2x1uJmIxmAKuqDsxSS97NwRWjHGCdDdr7JaWCJgSo+4tkl9gqxPAmNeCMFz3MeolN/QnmjmjgI9AjUZLPAmOMKhuYvJOPkN5/TPzEIImKyGPkBtP6Z9SEhLfE7YcSlviTiTtMeGAEZWgHEc8+sQOkOyNlmOQju1Gt6X82X2m7qqO9SVRYSITAaTIm0Z3b+xFoRWVMTMGyYLqvxoBCuaEDfFc0jYpksf9RJUgD3lAKRTPvEEoHMgxssJXLBxHPPrjFXAupmH9wCHQpt/iHnlwMeLvkd6rWBLOGFWd7pOY/mManpLsfZJpJMsJUalSNQnjcYK++FRXbd2MnI/01S5yRlNTcVv+dlCp+0kCKuLLqSZRZl1SgwubGdJfcDjx3x5Mk3Vaqr/GmG8DDltiWtejFyb3ylBlg4FaCuU1W+dQ6Q3mdwiNRJBOqaZEVB6+7wbOKhB7QhQUDNSRgRR2et504UrDMxCSXlkjibzbno5g1aVPeUyuDDHNsOkJIQrceaT8HiMgJaCtRdQpsDmmADHICmcF2CyGdMRIlqUAsgKDkBvEtRSaBgD0j1MtSasFA01wfJSSCDFw9nmjH7y0KDP82gOSABVZc41YPuUIqWLTJs6JaPooQnolI+AEVSwSlTZq5qgLyiTWoANQkbGFOUWLtZaLkkIBZUwt91NVed0czELYEpugqqW8Ifhlh0jDqpc7TZp48WTNiTLBdQKlbEh245QcLSFVKgwwAp+cQEiYVICQkgZ1pQhq/wCYdlyAardVK0evSsZKNNjhUSdRz0A4k4nmTwjlWYEPVRzyH6ng45R73dGqQMhQV3kQ6hRGABIFKFg+85QCHS5CglisVqafDLn1MLBY6xfIDEuz4COEx/8AUWKZJAYbHOLw5Z0qVUYNifgIhBtU1y7lIFHIBqchkDwhUm0ZIFfpZ9cIXOQnC8VYZU5GECQ+wJ2ZVbFvEYARQlXmKiVcwQOcOJWnd0/zAlpN1JUVBvrMAN1aefKGhMmGoYjJnHxiUSxFgs6UswSngA53OnH8US6Q1SCAc1G6PLW9YjPlITUm6GrcGGVVEEnj8IfVbC2qlhTXVrHzeNcWKkS6QLrs43MkcyaHjAVq0hcOZOFxIan21h9mAGMCqUtTKWs41Jo+NAk1BfZDgtktDKIdZAAUskDa4Sa9Whu4W0SFiRMWm8sCW5wSSpW5yc4RbbSiWFIVmWxBx2gMA52s++AJdrq7TFg5gFKfLI7yRWCZq3TdKZYQHpdJAfFqBIONQYsmUaITTVklTJak30gYkkgqBFHLOAMRnFD0n2QWl1pCvtJwOOJPxjUpdmKQkB7jAJShIDAVAISHA4HKITT+lZKAUoUkzC9MWYOXUQdZwNp4NE2uT4JaiuSk6O7R6QsYASu+gPqLN4MNgyAx1SItugfarZppuT0mSvBw6k+QvDoeMVibo82ggpN9RqQNcUyv1YcSANgiG012MWl3pszboSQA+flGqDlDqzNNRn0RvNmtyJqL8laVg+8khQG3DMbIflANSu07Tvj5y0fZ9IWVaVyVqbC85ThUpdweXURd9E+06dLZNslP9cMlX4k6p6DjF1mj3FPBKuDWWhKkxB6H7V2a0B5alMGe8lmJdg4cZcN8TiJgIcFwcDQjkRQw33FOLXUQUwgiCCISUxADDRzQ6RCWiBGSIQqHlCEXev8AKRAjChlEBpHsnZZpvd33a/pyT3Z5gaquYMWMphsoiNIl0Z1pDsFOTWVMTNH0VkyltuWgEPyTFX0hY50kvaUTEJweaAUnIDvEught+zZG2XI9uPQ4HGFOIxSMTkyVEiXKWoXyEhKVOlRVQBqj/Ea9ovR6ZMpEpGCEgcTmeZc846zdnLIib3yLPLTMrVKbtTiboo+9nh7TtpEiQuaPEAyR9ZVE+ZfgDFHwrZdcsonaW1CbaV1F1HzafuvePNRVyAg7RaAEijb1eTDLGIawyrocskZPUvtBxJxwES8m+RqpJbc1OZb+YCORN7nZ04LaqJdDnFTja7cQBjBHyh6BJFK3gwDDZl1ERwAavV/h/OEFqmuGTRO3LkIWMOmAEOpSlbKsA3D/ADCkJUQ6dUb26u1XhqYA4ap+sCS+5H6w5KUqrku+0Fm8hwggHJYbEON4pw2CHJk1RAvggNg1MaYY5Q3eNGAptJH88o9TMcscd1R5f4ithOC0h7rttcEHgHaHJc9RypTHPZiz/thDS6VJD7XbzNBDJm1NWO93PI1beQBsxg1YAxNoq6geNGbnQQha1ZU4pD8akHygOfOOeqMiTrHeAG5sH4iGMa92C+alV8xBSRLOsYTLU6S+96D9eTxIrmzCGAJTkzgDB3VmMMBAiDJDGqljAkjoaecSFjmFYvTDcSME4B9+Zh8SsmR1plkJuhZvEe4978anJ4boVZpd1IV3aQGqSoXjw2Hj+0TCLgT80m9k/PMmp5wyLHgVqSKYEv5O2cMoWLlC8HuMNqiCaHLLoILkAmqhTI4NsDqPwgQzSAA6lDDVoP3EItU26wumuAUbx43E1YchWLXRWrGtO6Ylo1Cok/RQWxrU0PR4h9C6IkKF4SgkYC8Cs8QFl8c1YZA5SvyGU99SLyxmtIDbGQCa/eEOTpylgi8ycGTid2GEW3UgbbGZSEp1EnaWJbgaU20FNowhpEpJUUkmmKgGoxYOXJP8pHlttLASwlga1N0sMCwq9c4clz9S7eYNUs5rvJYcwYBBo6NTMJSaJbA78/55RBaU7OSy7Fy2Aq/LZFkl2aTiqYTtBI6ECkKvBj3SboaqlV9ctwirLIzS19mZ0g35a+7VkJZN7mPhBGju2dss5+eReTmpJuLbenwq6RdFSg+pU5rIOew5coB0hoiUpJJSCRng0XhmnDoyssal1JPQPtBs89heF76JZC/wnVV90iLbZrYmYCU1ALHcWBYjEFiDnjGJ6U7JpOskg7HcHkBXmYhpVqtlkXelTFghhUlyBgHGI4uI1R1SfVGaem8H0UCDHERkehPautLJtcq99dOory1VfljQ9D9prLaW7mckqPuK1V8gfFyeHxmn0M0sco9SWIfgPWEmHN0JMEoNEQm7DrR40QI2EwoJhbQpIirLoSlMUj2hW29Ml2cKYJHeL23lAhI5JvfjEXpawlJUoslIJJ2AByYx9c/v58ycoEqWolskjBKSdyWHKMeplUa8mrTxuVh2jggGibysiqvGkTMsKV4j90Of5xrEdZkUbAbBTLMniIkJIODA7qt0FTHOZvQV3aS9HO3xehAEeId8ejYbHan3RzhSEvQlt37besenAsQ27HmTFQiTNA2cAK8P/wBHlDE6bdqkdcfIU5NA1oDqAfkN3nxEEyU0qw35/wA3l+EWoqITOJ8RZvU+T+sPotTUDj4nhj1bnDU1ARrYHLEmuwio5UgcyphDBk/8m+yKDe5I2AQOAhMy1hIckDe4fhQUGRu1GYgezWtTquG49XIck5UGG8+kCTbPrBkOcHdyS2alUAx4UiNtumZdme/NSV/7aBfP3lXg3AsIso3wBssSkKOs7qzJf0y5uYCtOl5CFFK50sKzBIJ5xQ9J9rLRNSUoJQk0oS/UAADz3mK8hYzYneHhixeQbjabNKlo8IVMWcFEH4/vEnLlTFgX6bDQ4PmfgI9jopdFghFjIYKU/MmHUWdCA/oI9jodEVJgKrSxDAkk0wAGwdOEMqtZD67PXVF1zg28x5HQ0ApWkEqd67yfhlHIt5CWxDUCRQeTeXOOjolABplqJe8mg8IZ8cScMmhqSUEvdWNoQS34Rgf5vj2OipAmZdSHCbuy8fgXj17wdRKt2CRxOZjo6BYUcJvAjZgK7hjDM6cDmxGGB6Jjo6JQUD2iWMeTnWO9kuwiF0lZQsMpJBO3E8TlTKOjoCIyAtvZwK8FaZ4DmYgZui1y/AVA7BVPnTnHR0WTdlGkT2hO39uszJmHvUDJTrH4vEOpG6NB0F7SLJPYTCZKt+sn8QDj7wEdHRpx5ZdBEsUWXCTOSsBSFBSTgUkEHgRQw5HR0auxjqmegQoCOjoqyyKz7Q9Id3Zu6B1pxu/cFV9aJ+/FFsckCrV2fonpiY8jo5updzOjp1UA+fbUSU3pqgHwzPJsOQ5wbYdMImBpNWxoUjjeOPJ+UdHQpwWzcM3PdQYufgP2/c8THIVeqB6dNnrHR0JGgc6cxYm8r6Irt8TY0OZpEjKm0oLoGOfmDTDGOjojAgWdaABqvnUVqcnqX4dIhtK9qJNnAClgqzlpAJfeQWHN+EeR0MxwUpUyspUrKVpntbaLRRLoRgyTXmrOmykQLMKnj+8ex0akkuELvizlz1KoKjygiRooqD94OQfzjo6GxihLk2z/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFRUXGBgXFxgXFRgVGhgYGhcXGhUYGhkaHygiGhslGxgYIjEhJSkrLi8uHR8zODMsNygtLisBCgoKDg0OGBAQGy0lIB8tKy0tLS0tLS4tLTcrLys3NSsrKy0tLTEtLysrMjEyMC0tMC0rNy03KzcrLi0tLS0rNf/AABEIANUA7QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQcDBAYCAQj/xABLEAACAQIEAgcEBQgHBwQDAAABAhEAAwQSITEFQQYTIlFhcYEHMpGhQlJyscEUI2KCkqKy8ENTk8LR0vEVM3ODw+LjCCRE4RclY//EABsBAQEAAwEBAQAAAAAAAAAAAAABAgMFBgQH/8QAMBEAAgIBAwIFAwIGAwAAAAAAAAECEQMEITEFEhNRYXGRQYGhsfAGQlLB0eEUJDL/2gAMAwEAAhEDEQA/ALxpSlAKUpQClKUApSlAKpP2r8Zv4TH9bbxF22MqgZXbKIVPobES0wQauyqL/wDUJY7aHvQn52x/cNAbXR72x3VAGJtrfX69ohH9V91j+xVkdH+m2BxkLavqLh/o7n5u55BT73msivyAjkGQSD4GK3LfE2iHAYeNAftWlfl3o37TcbhYCYgug/o783F9GJzL4AMB4VaPR7204W5C4u2+Hb64/O2viBmX9mB30BaNK1eHcSs30FyxdS6h2ZGDjykc/CtqgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpXPdM+O3sHaF63hxfQGLgzlCNssdk76+uUc6A6GlcbwX2kYS+uZs9rvzLmA9Ukx4kCupwPELV5c1m6lxe9GDD1jagNmlKUAqnf/AFBWfzaP4Bf3bx/Criqr/b1YzYND3NJ8vd/6lAfnTBYR7rhEXM2piQNAJO/hVo4nojg8TY/MBUcbMs6MdcrA6kefpG1V/wBE76pirea2XlgBlJDAkxIA30JkGrTxGBaw4vICVOlwDmO/zG9dnpmnw5cc1Ln6fv1OH1XNkhOCg2vqvX0ZX/C+h+KUi8yKAjEZWnM2XQlQBtOxnx2qa/2DNpM4gi2ARuQ/PtA7SNq7IXJkTP0lPeD/AD8/GsD28wYeEjyOh+f310dNo8eJU919bPhl1HNlktqfoVtw5r9m/OGuvZuGMpVihJkCCV3ExoQRrVkYH2q8SwRCcQwwv2xAN1IRteeZZttpEAhTXHcLwh/2lbtnbrM48lXrD80Nd3x1IAHeJPoUH4mvJ9Tzw02shgS5u/nb+563Q4nnwubflR3XRn2k8OxsLbvi3cMfm735t5PIT2WP2Sa6+vzunRDC4nEPbdCn5kOGtEKcxeJiCp2blWSwOMcLBOFxXX2EIHVXdREwAFY9kaj3GFaJ6zBDIsbkraT+TP8A4+RpyS2R+hKVUvAvbbakWuIYe5hX0llVnQ/pFSM6jyDedWngsWl22l22wdHUMrDYqRII9K+lOzSZ6UpQClKUApSlAKUpQClKUApSlAKx4mwtxGRwGVgQwOxB3FZKUBRPSfhD8PxR3KNqG71J0PmNj4wedYMZfC5b6rCj32SUdJ2cMpBgcxVx9LOArjLBtmA4k22PJo2P6J2NUlh2axcaxdEQSIPhoVNZp2YNHT4LpfjLGgvdavIXQH/fEMfUmui4d7TLR0v2WQ/WQhx5kGCPnVfm0FUKvujbWYHISeVaN0UoWXxw3pFhb8dVeQk7KTlb9loNcp7arM8OuN3ZfndtfgDVVGt4cRu3LF+w9x2TqLrBSxIDIhcEDlopqUWzheimIw9m4t24rs6mRDAAHy3Pxjwq1uG9McG6ZXJWdwymPjVScBvWM2W/YzJm/wB4rMGU+MGCPL513adDkZM+GvaHUK8Mp8mG3qK7ujUZYVsl7Xf3Ofmx43mud8fb9+50WKwQQC5ZYPb3QgzE7oTzBnQ9+m8Vr27ozgjY7eR5ehj41zeDxl/AuVdG6ptLie8I5snKfv8ACp/jmFNkqRJVtVnQ6iSp7jr8fKvrx514qw5HvK69TVqen+D2ajGtlyYMFw3/APZW7v1bd4+uQqPk7fCpvpBb1A7l19XFYeC3A9wNuerceegM/AVKYuxnuPPgP36/Ov4rk49TTf8AQv1aPU9MgoY3BcXt9yN4LhmGNYxoLVpPXrLxb71+NTHGcNKEd7L/ABrW7gsOBcZo1LaffXzGEG91fcuf4MIryuXNPLkWStopL4R0Y1F9q9/k4fpfh0bq0ZQwCtoRO8RFWX7J7+fhOF/RV7f9nde3/dquemQy3kH6K/eR+Fd57HzGAa3/AFd+8v7RFz/qV6nos7x15qzna9K7O4pSldw5opSlAKUpQClKUApSlAKUpQClKUAqvPaj0X6xfyu2O0sdYBzA2f02Ph5VYdfHUEEESDoQdQRzFVMjR+e8LclfLccx/jWK9U7066PtgsR1lsE2nkrz05r5ry7xUDdcEBhsazMDWes3DlzOyjdrWIUebYe6B8yK13NbfAj/AO5sjvuIvoxCn5GgIHoNg9LmZJDxGaCGUTy9TvyNdJ/sxlk4S6bL87THsN9knY+DfGozo3cbqVNuC65gVkA6MRGumw51NpjrGKBtNmsYgcmEGfCdx/M16bFjhDBjV8q/nc0Y4t5WzSXpE4Js4y14GRHhOv3/ADrucE1u/YCt27bJl88um/JpUGeRqvcXi79n83iUF1BsfDvVt1PhXW9EMTaawbdppALXEB0OUkZxHIqxMjxHfXkP4kjkWJZcfMGmmtn77eR6HTRg8fY/j/X7RG8OVsPi1sudmKg8mzowUjzmY5Sa6v6V3z/vH8agOnFtstrEqNbbDMe6CGUnuAKmT5DnU/hHDO8H3hI8jlZfx+NcXrmWXUcWn1m1yi4y94vf5u0vI+bH/wBfJ4flwbF7Fhfyc/WIJ/syfxrSweJ6zHXiNktKvqch/wAaieNXWzWguvV7gAyZVlERzldufLXQ/eh3WBsQ1xSrXMhUHfKM0Hw3Gh1EV1MnQ8celzWLl1L14TPtjljKSSNHp+fz1rxWPg3+tdt7JGhMWnfeW5+1Ztp99o1xvToA3bB+qxzagQDECCZOx2BrrPZjbZMRiFP07NhgPEXMSG+TJXJ6SpY/CUlXdF167mjVtShKndNFi0pSvQnMFKUoBSlKAUpSgFKUoBSlKAUpSgFfJr7XnLQGhx/hKYqy1l+eqn6rDY/zymqD4jgnw117NwRrBHce8eB/ncV+ja4r2j9GRiLfXqsvbHbA3a3z9R/OwrJMjRTbms3DL2W/Zb6ty2fg4NaeIldDPgTpImPjyrCbvOsjA0r+fD3bpQkZbtxT3aOalv8Ab9u8oXEWQ0bOujL4j/WsvEMQExONRlDA4m6QCJENBFQD2wSSq5R3SY+deg06awwadprg0y/9MnbfG4HVXvz1s+6496PEHmPQ/Kuj6A4EWzcu23W5bb3REOjEMGB8CCvwGlV1cU+tdR7OuJBb5UtGYRHIsNQfOJ+HjXG69hlk0mTs5Sv3X1/B0tHqX3KE9/Jlp4BQSVIlTptyO4I/Co61bVMZ1YAC5YUAaAZdAByACmpJLuWDsdj+GveKhOJXCmLUzO37wIP3fOvzPTrubh5pn0dUTjjWVfytfHBzvSfiV3D4tchEFXLAif8AdhmSD7w1c7ETOtbXRLpF1tu3nTVRkBBBkKVAMECDoRvoXczqAI/2g64hGHO2fiyXCf4RUP0dulLVnxn5ux/Cv2np2hxZunYG1v2Lf7HNxZl4lvhk3084fYu37T3cS2H36kmCkgAvMwM2tsasNO/WOz9nuLJxVkTObC3gW72tXrCqZ8QXNcrx/E23sKLltbqk6K2na+gwaDBAzcjIYg94nugz9VfwKky1zrlJA+tae56A9VNeX1ejnjyxj27Qdp+jTVfp8HReKMMeSnzv+bLYpSlD4BSlKAUpSgFKUoBSlKA4nj3tCGGuMhwWKIUxnZAiN4qdSR4wK0sL7WsMTD2bq+RRvvKmrCZQRBEiobiHRTB3vfw9ue9RkP7sVdibmnhOnuAeB1xUn66OoHm0ZfnU9hMdauibdxLg70ZWHyNcRjvZXhjrZuXLR+I+UGuex/s1xiHNbe3djaYDfFgCPRqUhbLgpVIm/wATwnvNiUA552dfRbmdfhW9g/aJjUgM1q5/xLRRj62zA+FXtJ3FwUqu8H7T/wCtwjedm4tz5HLHxqZwftDwDwGuPbPdctsI82UFR8alMtor72ndEeouG9bEW3k9wVgNR8PltsarpLm6nev0vib2Ex1prK3rVwMPoOrFTyMA7ju9K/PPS/hf5NiWsZWV0AJmYYEmGUncR/PKqmRo98bVWxV4kxmWxc/tLKNULfGU9kz6Vj6buRdsOCRnwuHOhj3bSp/dNQVviLjmD5gV08WvhHFHG48fX7mt423Z0Fu4G0rGxNthcUkEEGRuCDII8QYNRY4rO6+oNbljjCBkcgNlILI6yHAOoIMjUaetbXqsc4Pfcig0y8cJjc1pHkHMitI1WToY7xPyqO45w8ZkuqSOyyMJJA2YHLtMrGnfW1g8RYuWQLFy0wX3RbZTA7oU6eVeuI2S9sxvoy+amR91flHd4ee0qVvb0Z6nNgWo08oXymvwcn0tbMyN4LH68x/EaheGH83Z+yflmH41M9I2/wDbrcB90MJgGMpDIYOh7LzB7qh8Sp63tXAkDsq1kWC0dp9AFUzIEqJJnQBZr9X6L1WOLQ4oSV13R58n5ezR43BvBWa3FsectlSfH5L/AImuy6I8VDYnCGfcxWQeqXLQ+Vyonh/RvD4mxaNy5kcKNyR4b6jYAxHf4St8G/IbmFYXM6HFWWBkNtetsdRHJTyro63JiyeJGPNS/C/ydKOaaj2yP0VSlK8oYilKUApSlAKUpQClKUApSlAKUpQHwiovHdHcLd9+yknmBlPxWKlaUBxGP9m9hp6p2SeRAYemxrm8f7PMWhJRxcX6oIPdyaI+dW3SrbJR+f8AiXCLtkOb9nKqgtOVpIHL3YJjuqJ/KcPiVAL3AydpSdcves69mYkDYgbamv0Nxni1jDoWvuqiDodS0CTCjU6VTfGektjGXGbD4NLNmCDiGGVmM7AKQvp2jsatko4bjnDTfGDW2C5GGIGVlGi4i+u7aHQLXPYrgdxCVIZSNwynT1E11+J4fdXqmU6Ln6uQJXtZjqoBM5pgmBOnOsuAFxros3fzltyxViwF2ydTCk+8smMuoMj3TrShZX7YJ+UHyIrC9thuCPMRVhcW4R1UMwV0YwtwDcxMEbhoBOXwJEjWtBsHb7o8iR+MU7S2cUGI1G9dtwLF8QyD8m4grErPVPeGYEAyoS7I8NO/u1rBc4NbbmR5qG+7LWrd6Ng+6y+Akqf3gQP2q1zxRmqkk/fcyjNrhmfG9LsSvWYe/btkh2zaQwYZlYSCVjyHIVqcP4zYFxGu2iyroVDFdCCDDLqIJJ2rXu9HLw2Vj9kZ48zbLR6xUfcwDgkRJG4nUeh1rbhksK7YxVc1RrcE79SxOjvTHDWbfVu5gknUPEB3Kzl12O2nKnSfilq7hy9q5bdkKuMoRSGDCDlX11gVWj22G4I8xFfFuETBInQwYnzrZPJDJneaSpt26dfrfJ9UdROOPw9mqrc/b9t5AI2IB+NeqiuiuJ63BYW79exZb9q2p/GpWtBoFKUoBSlKAUpSgFKUoBSlKAUpSgFKVyfGumqKTawq/lF0TJH+6SNyzjeOcabyRQHS43GW7SG5ddUQbljA/wBfCuB4x0+u3C1vBW8qAdrEXIAEiQUU6er+Iia4zjfSQO+a9eGJuEGFVosWxO3YmdtlGsCXrncdxC5dOVwGU+6AOymuuVTCz+kdfGskjFyJLHcbth3fO+IuvoblwswiZyhZDMo5aKNveqExnFXYvm+gjFVy6gLsAF7IHkIrFPZcdpiOYPYXXXRZB8yakeiYXrc59wK7XWgABbYD3AsDfLBkySAayIY8VZKLbsGSbVtVaTP5xh1l31DOV/VrXZZIJ1K+6TuPLury983GD5+1cYtckDKrO8sREkgZp25c6S0EyDG89nQmFjUydyY2jxoQkOGcR6lWULmU7odVI+qAdACde6dRFZLvB1uqLuFB116psyusEglebgEHs6kR9IS1RrKw1K6GcpBBzgPklZgmW25xrA1jNhMc1sjQ6jQFSTuVkRzzAjzBoDTRjsAZI5RtESNz8D3jSRHssRvpE7gjlrr/ACOdTjCzigTKpe17eoV2P9YF1zfpiT35pkQ+Jwty0xS4rpGukMD9VpBOYT9IHXXehTx1nh8P/uKym+SIaSO5gWHlBEVrhh70r3CREev+Gu2/L71Z2+MHMD3RMD5d+lCHoYa02wX9Ux/CYrWPR9H91gZ71BP7SkVnZeZ9JWdttRABHf5baRl4fZzOACARzzd/yG9Si2Xf0E4xbtYPD4e4SrW7a28xHZOXQa6wIjeuyBqkMPduIAAzeRgg+i610PAumFyzC3CHt8weww+yDpHr6Co4lUiz6VqcN4lavpntMGHPvHgRyrbrEyFKUoBSlKAUpSgFKVH8Y41YwyhrzhZ0VRLO57lQat6bc6AkKheNdJbOHPV63Lx2tWxmfwn6o8/Sa4/jfTG9dlVLYe33KQb7faYStryEsK5W5iTBVAEU7gbt3l2Or9+uk8hWSiYtkn0p6XPczLeLZY0w9jNkPhdxGUqfECfEA1wvFOOXLo6sMiW5B6pCqqCNswzFnI72J9KnwK+XBOh186yIc0touxJMAAkkhlGnJYDFp15DvmtZWAU8iTuTJ5bLy+FT9yxYnW3bJ78iz+0BNYHtWzujD7N1wP2QQKEIa9dBj3ojXNDEn1JA+FTOFu5MFcJMZ3WysmZBOe7yEaK9s6fSFaz4K0zABnWSN1SPUwTFSXGL6K9m1c7QS0WYAgnPejkSNraWiPtUBz++YlZkaRB2A108Sx08K+OFCpoQ0kPBIkbgzyJ7Q05Bec17w9lSWNwH3TlgT2o05bEn92vMKLYOZusLarrAWJPqNRHhQHs2xncK8BQSpkasIJEnU6CBG5IOgmPiZlVWDQLh7iplDIMjUwGDac55ihsyxUOCACSdIJCkkA6zqIHfIOlYoOUN2dSQNDOgGvwYH40BtdbdBIygdWArLJ0yhkBI37MnwBI7wKkcJxZXUWcShZN11grInMra5dN5kGNQYAqHuI8upBnd+0T5kxOxGvjFfBi2BRtZUQshYAktt9ok685oCTx3C2sxcQm5aP01AUqeSuIOU+cg8iYMatu2GLCUEaiZBMbKCAYmdjA+ArxwzjT2NBquoZSJBUgSsHQjfQ6HbSpf8lt4hS+G976VknWf/wCc6n7B17i0wBSKOhkgjeADJ8xP+v4THBbQjMSdf0c33a/zvUVbTWNvLSpaxcZRAJHwP8QNCEqoA+oPAA2yfID7vlX3WNJ9CCPi1a6Xm5Pbbvklfm2UfCa9rmmeqV/FWDfHIDHxoQ2+H8Qu2HzWnyH7Jj9bkR6fhVi9HOmVq/lt3CqXT49lj4HkfA1V9y6Boy3FbvJ0+BP891eOuH0WHKcynT1A+6jVlTovylVn0a6ZPa/N3XF23oAQRmXygnTwPxG1WLgsYl1Q9tgyn5HuI3B8DWDVGadmelKVCilKUByHTTpHesnqbCMpiWvG2XCg7BB7rPvqdBpo2wry5eOZmLE3G9647FrjbmCx2XUwqwo2iryr4yg7gHzqp0RoooLX3JV1XeGWW96zaPnbU/eK1n6O4Q//AB7Q8lC/dFXuJ2lL3r6rpMnuH41p3rpbwHcP51q67nRDBn+hjydx8s0VgboPgj/RHzzN+Jp3E7SlerrzcWrivezzCHY3F8mX/LUZiPZgh92+R52y398VbQplZcJwvWXkTaWAnuk7nwia08ZjLd65cuG2zZ3ZlyuFhPdtqRlOyKg5bGun49wcYE4lRczsLQthgMkPflY1J1W0Wf0rjsTbUgZLbDvk5hyiNBHOqQwpaAVyQc30ABvrrJ5DQn18K9BBKKHMn3iSYXtEc/1ST48or4iABy0iB2QJEnTw+0eUwK9FdEGc5mJzSTC+Ovee7YEegHll9/tjKu2g7Wo2GvKT4R5V6/JHm2IUs+qgTI1K98ROn38xQqJftiFB3CidRoInXUHQnYmaDDv+bAC5rnugTI7RXXX6yx8DQGFmYBxyOjQ2+3x1Uc9xXq1fdHVgDmUSumwPaB5d+YGhsvlYx2UYZoOmaTEd5mfnXvK5ZhoSQATIMjs5YJAnltynlQHjDhoVQDE5hC6kxuDvAIJHrU1YspDHVGJEMFIKAkEwY8Zg6Ry2pw3DsMh6sxqF1XX59wO/KpvDXcog27u5JhM25nlPlQEc2MtXGCYh1FwwExC+6/ILdG4bx37i0ZR5xWGe22VxHMHcMO9TsR/pvU7hwmJc2gnaustsZlaAs5WnMIIksfDWp3pL0HuYdS2EU4jD7thWablvvbD3GM7fQPdAJHZqWKs4HNXhhWY21ZTctNnQGG0h7bbFLqbowOnd91YwapD7bvsugZh5Ej7q9jFNzM+YDH4kGsLJ3VjzUBJIVf3dG+qdZ+yeZ/ROu0TykuE8cu4cg2oWNCBMHwYEkH5HuiuczVt28ZOj6/pc/X6w+fnEUBcnRnpfaxUI0W731SdG+weflv5710lfnwGIIPkR+H86V2/Rjp41uLeKl02Fzd1+19ceO/nWLRmpeZZlKxYbEJcUOjBlOoKmQay1iZClKUApSlAKUpQClKiulOLNrCXmX3yuRI3zuQifvMKApfprxBbtwM0lbty7iDl3KibOF30kKtz0NcnYZVzMyKxjsgrI0Ik7iPpfAV0HGYN98rtlWLaxlIy21CAjTY5c3mxrRKN9b4rP3RWw1mjctoqWyt0m42brAAy5MpGXtfSzanTaQKxtuQGLAGAZOvjrrtG9SBtH9D9j/urw1rwQ/Ef40Bome/5L/hXkjy9R/hHdW4bP6K/tt/lrybP6J9CPxigMFq2zEIomdYAPLWYnXWpPh+CeC4UROQGT72wG2mpNYsNa1nI3xX/NUzhsSVVVKtCnNEEyYgkxOux9BQGyoe2FLKmVRAAY89t17p+NbNjiD5GuCySokFiVKz6wd9Nu+tW5xRWI6y11gAIysrkcoOq8gCB5mtdcTY7M22GstFx1DTJIyyANSDtyoQ7f2d2hevq4UhbCHU7lm7Kk6/Vz/CrLrlvZ3gVTC9YBHWsWGs9kdldeexPrXU1g+TYuDn+L9DcHiLpvvbK3SpVrlp2tM6kQQ+UgPpp2gajrns4whJIa6J10NuPhkrsaVC0cNd9nFr6Lj9ZGP8Nxa1bvs1H10Plmt/xG5Vh0q2yUir7ns0ucskf8aT8OpH31gu+zq5GiXAfB7b/eUq16U7mO1FLHoZik2tvHMFcwP9nm+OhrBc6O4gf0bD7SOnzdVFXhSr3E7Sl+DcRxWCeUKwT2rZuIVb0DaHxGv3VZnBOlNi+kk9U4jMjmIJ7jsw0Oo+VTZFfEtgbADyEVGypUeqUpUKKUpQClKUArj/aJj8iW1B93Pe9UAS1P/Nu2z+qa7Cqq9pONzXWUd62/1ba5m+L3Y87VVEZwcV8ispFeSKzMDxFar3ToQzeIkgDUxHpFbN4wDWnFAe+vb6xPn2vvr3avN+j+wh/u1iC1uYe3QG3YvsNwh/5aD7lFbV3YGFBM+7Oo08SN8w9DWpWze0MfV0+G/wA5PrQhiatpMbceLSpblyFUZABmY5VMDSZI18BWo1dF7O+H9bjUYjs2gbh7pHZQectP6tGEW3gMItq0lpfdRVQeSgAfdWxSlazaKUpQClKUApSlAKUpQClKUApSlAKUpQClKUB4vXQqszGAoJJ7gBJqi+kOIL3mJ3G/OHYl7o9LjuPICrc6Y40WsK8/ShY7xqXX1RWFUvcJYkkySSSe8nc1lExkYIr4RWUrXmKyMTSxh2HrWvFZb5lj/O1fFWgPVpK20rCgrKKA2MN7wPdr8NvnA9a9GvllezPeY+Gp+8fCvpoQ8NVneynh+Wxcvka3XgfYtyP4i/wFViQeQknYDmeQq+eCYAWMPasj6CKp8WjtH1MmpJmUUbtKUrAzFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKA472kYcvbtANlGZuU65dD6a/GuJsdHS39L+5/3UpVTMWb1roYW/pwP+V/31u2vZ2T/APJH9j/5K+UpbFGcezCdfyof2H/krdwvs0sgfnL1xj+gEQR5EN99KUtlpGw3s6wsEB7wMaEspg8jGXWtZfZta537noqilKWxSPY9m1j+uvfuf5a9f/jbD/11/wCNv/JSlLFIzYH2e4a3cS71l5ijBgGKZSVMiYUHeK6+lKhaFKUoBSlKAUpSgFKUoBSlKAUpSgP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8QDxUQDxAQEBAPEA8PDw0PDg8PDw0NFRUWFxURFRUYHSggGBolHRUWIjEiJSkrLi4wGCAzODMvNygtLisBCgoKDg0OGhAQFy0dHR0tLS0tLS8tLS0tLS4tLS0tLTAvLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0rLS0tLS0tK//AABEIAK4BIQMBEQACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAQMGBwIEBQj/xABUEAABAwIBBgYMDQEFBQkBAAABAAIDBBEFBhIhMUHSBxNRVGGSFBciIzZSU3FygZGUFRYyQlVic4KTobO00TVDRGOx0yQzRaPCJjRkg4SissHwCP/EABoBAQACAwEAAAAAAAAAAAAAAAABAgMEBQb/xAAzEQEAAgIBAQYDBwQCAwAAAAAAARECAwQSBRMhMUFRMnGRImGBocHR4TNSsfAUQoLC8f/aAAwDAQACEQMRAD8AvFAIBBSHDjl5WQVQw+jldThsbZJ5YzmyPc/SGBw0tAFjo13U4xc0KlOUWIn+/wBZ71PvLL3M+6eknxgxHn9Z71PvJ3M+6ekvxgxHn9X71PvJ3M+50j4wYjz+s96n3k7qfdPQUY/iPP6v3qfeTuZ9093LIY7iJ/v9X71PvKO6laNMz6tumr8RebfCNWP/AFM5/wCpYtn2Ituaezcts11RDq4rR4pDRGrbidVK1j42yRiedpjY+4El8/SM6zfO4LX08iNmU41VKc3gZ8WuqbiUX+MuIc+rPe595bDQZRZR15cAa+saCQC7sqc5ovpNs5BInwYkP+KVX49RvoGH/CQ/4lVe8T76DlV+NYhE/MNfVu0A37KnGv7yDX+MmIc9q/ep95AOyjxAH/v1WensqfeQKzKLECbdnVen/wAVPvKYi5oP/DWIc/q/ep95Ze5n3X6C/DWI8/q/ep95T3E+63dT7l+GcR+kKv3qfeTuJ909zPuPhnEfpCr96n3lHcT7ncz7lGL4j9IVfvM+8o7qfc7mfdmMVxH6Qq/eZ95O6lMaJ92YxHEfpGr95n3lWcJWjjT7plkzkriVc6ZrcbqGGAxGxkqXcZFK0uZIO+aAbHQsWOVxZyOPOnpmZvqi3d7V+K/T1R7ar/UVmsO1fiv09Ue2q/1EB2r8V+nqj21X+ogO1hiv09Udaq/1EC5M4ziuEYzDhlfVOraetDeKke57y3PLmsc0v7ppzm2Lb203QXagEAgEAgEAg8wcOX9em+yp/wBJqya/ihMeaCraZaCFFsiRZQmigImDjUZMW9RvsVg243DpcbOpWFkrNHMx9NN/uqiN0Mm0hjxbOHS02cOloXCznud0ZOrztH/J40xHn6fNVOKUElNPJTyi0kMj4ngXtnNNrg7QdYPIV14m3i2qgnWT9ZxtM25u6PvbvV8k+y3sKDYmCDmVdOxxu5rXHVcgE2Qc+Wlj8RvVCDUlhb4o9iBnNA1AexZcaWhkCs8SyRJQVa14kt0tey3RNsg5QWdY5QmJPscqzDJjKy+DWvEddAL6Kqi4l3JnROcxh9sQb95acRWWUff/AJW5k9WjCfaco/36rgVnLCAQCCqOEXwkwn0qb9y5BdyAQCAQCAQCDzBw4/16X7Kn/Sasmv4oTj5oPZbTNQsiaFkKLZFogtlCaZAIvDYhOlUybWqaSbJ+rzXjSuPzdVvQcTPqxqTvCrh2dxOIMGiZop6gjZPG3vbj6UYt/wCUVbhberXU+cPLdo8fud8x6T4q8W40HayVrOLnzCe5mGZ9/wCaf8x95BK5gg0Jwg0Jgg0ZQg1Xq0SMLrLErxLIOWS17KCpWiS3S1rZAolm0qU2eY5RS8Sk0FS+nhhqmi5paaOcC9rkYmHNHrH+a05+PJPKyrRhHvll+j0THI17Q9hu17Q9jvGY4XB9hRz2SAQCCqOEXwkwn0qb9y5BdyAQCAQCAQCDzDw4f16X7Kn/AEgsmv4oWw80IsttsUWyhNCyFFRNCyiVmQCLRBxirLNg6mHy2IWnyMLh1uHs6ZT+hphX0UtEbZ0zO8kmwbVM7qI32d0M09DiuPpz7rd4+U+Ce2eN3mrrjzjxUw9haSHAggkFpFiCNYI5V2XkiNcQQQbEEEEbDyoJ/SVImibIPnN0jkeNDh7boGJwg584QaEyDUkQMkq8SmJKCskSvZQVa1olkCrRK0MgVKWYKlY4HWF+RSmJWSzBXSYXim3sSloaYEbJaYNlqB1gPaufhlE5zHvEz+f8MXaOU446o9qv/wAv4mE94JsW7KweAkgvpwaR9thi0MH4ZjVmBMEAgEFUcIvhJhPpU/7lyC7kAgEAgEAgEHmHhv8A6/L9lT/pBZNfxQvr+KEKstttUWyFCyhNFsiaFlC1MgFC0QzaEZMW1TOsVgzi23qyqUxyXrS1408i4PLwqbd6IjbqpwuFXCeJrRUsFoq9vHiw0NqBonb586z/ADSBdHjbe81xPr6vDcnTOrblghS2GBI8k6v5UJ298Z5xocPZY+ooOzOEHOnQc+ZBpyINdyBA5XiUswVkiVrZAq0StbMFWhaJZBWWt1sn428bx0g71SN7JkvqdmEcXGfSkLGnoLjsWPdlWNe7JrxjLKIny85+Uea+8gMJthhgm0yVUcslRexJkmuXA8pAIb91cTi7+rlT7eSvamvLLVPv5/78kF4Cq10FVWYbKbOaTK1uwSxO4uUDpN29RdOYqaaWGXVjGXuuVQsEAgqjhF8JMJ9Kn/cuQXcgEAgEAgEAg8xcNv8AX5fsqf8ASCya/ihk1fFCGWW23KFlCaLZE0LImi2UJpkAoWiGQCrK8QeiVJZsHZwybNcCuZy8LxdvhZ+iY5QUHZ+EyMaLzUw7Lg5TmA8awedlzbaWtWnwdnRsnCfVx+2+NVbI9FLLsPOnqOoMUjZG62EG3KNo9Y0IJtI8OaHNNw4BwPKDpCDnVCDnTFBpyINd6DC6kZNKtEpg4CskStbIFXiVoOM06Bck6AALknkAVrWiU1wPDQJo6LXxUjamvOgg1LR3umuNYjub/Wc/ZZcjn8msJmPXwj9Zdbs/i9UzM+lTP/rH6z+C8sAmtZcXj59OyJRzcLtUWVrvgjKplV8mGZ8czzqAhlBim8/z3esL0+U3U+7zfG8MZw/tmY/WF5lVbAQCCqOETwkwnz0/7lyC7kAgEAgEAgEHmPhs/r8v2VP+kFk1/FDLp+OEOsttv0LKE0WyhNCyJiC2UJooCi1qZAKsrRB1gVZZMW7SusVq7sbhv8bKsk9yQxAse031ELhbYnDK49G/y9UbdcxPqrfL7AxRYhJEwWhfaen5Ox5LkNHonOZ9wruatkbMIyj1eE2YThlOM+iOrIokuAVWdCWHXGdHoHSPzv8AkgdqCg5sxQachQMuQNlAoUwMgVeJSzBV4la3doh2HG2pe3/aZReiidriaf724bPqdPd7G52LPKcp6YZ9cVHXP4R7z+0fwk2Q0Yj063HS47SSuH2lN5V7PXcHT0aPHznxn5rawWbUudjPq53LwRL/APoLCeMpIKxouYXmKQjycg0E/eaB95eo4+fXpifZ5HZj3fKmPTOPzj+Et4Ncb7NwuCUm8kbex5tNzx0Vm3PSW5jvvq7Ok6AQVTwieEmE+lT/ALlyC7UAgEAgEAgEHmThr8IJfsoP0gr6/ihm0f1IRCy2nSoWQouaoTQDUtNFzVW00yDVC1MgFC0QzaFWV4bESw5tnV4SkGB1NnBcflY1Lta/tYU63CThnZWGsqWC8tC7u7azSSEA+fNfmnoDnFZOz9vnhPzeS7W4/Rn1x6qfXUcdt4XU8XKDsPcu9E//AIH1IO5UlBzZig1XlAy5BgUCBBmFaEu5QUkdPG2qq2h2dppaR395cP7SQbIQR98iw0XIpllPlDNrwiuvP4f8z7fvLnSVsk9QZZnF73nOc48vIBsA5FfXEQtqznPbE5Jvk1LYhcbn4+L2/Em9dLOwWbUuU0eXg7uUmGCuwyem0Fz4nZl9NpBpYfU4Bd7svZcThLx3auHTEbI/6zf7/kqjgDxwxVM1BIbCdvHRNdotURA57QOUsuT9kt5C8kAgqnhE8JMJ89P+5cgu1AIBAIBAIBB5l4afCCT7KD9IK+v4oZuP/UhEs1bLrUUNUWUXNUWmi5qi00Wyi00Wyi0xBQEtambWqsytEHWLFkz4Q36KTNcFocnG4dfiz6LGyZlZI0xSjOilY6KVvjRPBa4ewlcrDZ3ecZR6NPtTjdeEwpHKHCX0dXLSyaXQSOZnas9mtrx0OaQfWvRxMTFw8S5ykdqnnz4wTrHcnzjb7EDEpQaz0DLkGJQIglWTmAElj5Y+MklGfTUbiWtkj5zOfmQDXyu2aDc0nL0hnw1xGPXn5ekes/x97g4vWPmnfI+QykusJC3MDmjQ2zfmtsBZuwWGxWiIhTZsnObn/wCNaE2cFfDzRrmsolMcBn0haHOw8Le07N2XjSzcCn0BcGfNm5eCeYLNsOoiy3OFs6NsPL87T1YzDz9lzBJg+PmeEWtM2thFzZzXEl7D0Fwe3zFeiz8793B4mU930z54+H08vyeh8PrY6iGOeI3jmjZLGduY4Ai/IdKo2WwgqnhE8JMJ89P+5cgu1AIBAIBAIBB5m4Z/CGT7KD9IK2HxQz8X+rCK2WxbsUWyhNFsotNFDVFpoualpooaoTTINVZlajsEDnuDGNc97jZrGNLnuPIGjSVWcqXqIi58ITnAuDCtms6pc2lYdOa7vk5HoA2HrcCORY5uWps7R1YeGP2p/JOsM4O8NhtnMfO4ac6aQ2v6LLNt5wVSdWM+fi1M+1uTPwz0/JIKbCaWMWjp4WejEwf/AEnca/7Y+jVz5nIz+LZM/jLnYzkZhlYS6ppInvfbOmGdHKbAAXewgmwAGnkWWIiPCGsrvKfgTaQX4bOQ7Sexqkgtd0NlA0dAcPO5BVU9DPRzup6mJ8Mg0GN4sb7HDYQdNiNBQNyFBrvQNOQY2QSvCcE4lzeNY2SrcA5lLILxUjTqlqRtdyRdbxTjmerwhsRhGuOrZHn5R+s/d/lZmS2Fsa1/GOdJJUA9kVD9MkucCDp2AAmw2e0qYivJizznOblR+JUT6eeSCT5cMj4nchc0kXHRoV1GuEEhwSfSFXlYdWD0vZW7xWVk9UaAvM7YrJ6Dfj1Yp/hE+pVwmpt57la/NEuHzAuPo462MXdTOzZCNfEvsCemzg31Er1OjPvNMT7PJbI7nlfdn/mP4McA2UfG0z8PkPd0xMsIOt1M8900ei8/8wcilsrVQVTwieEmE+en/cuQXagEAgEAgEAg80cMo/7QyfZQfoq2Pm2OJ/VhGM1Zrdyi5qgooaotNFzVCaKGpaaZMYSQACSSAANJJOoAbSqzknpTzJjgzqZ7SVhNLEdIjsDUvHonRH97T9VY5mZaW/n4a/DD7U/ktLA8n6Sibm00LWEizpD3UsnpPOk+bV0JTlbd+zbP2pdNSwhAIBAII/llklTYpBxUwzZGXNPUtHfKd/R4zTtadB6CAQHnHH8Inoqh9NUszZYzptcskafkyMO1p2H1GxBCDlOQLTUz5ZBHExz5HmzGMBc5x5AEuiIvwSTD6ZtKc2JzJKv59ULPhofqwnVJL9fU35uxxx+OXybVRo+Lxy9vb5/f931dvCIWs0C+k5znE3c9x1ucdpV/JrZZTlNzNymeEz2soEC4XsKzKllW0dzVMDXkXsJ4wB6rtzPPZymEIApHRwqWxV5+1hTpdn7enOliZO1Opec5eFZPa4T14LDwmfUtRyOTh5pPJSx1dLJTyC7JY3McOVpFiu12XviJ6ZeT7U485YTOPnHjHzh5nwyqnwTFwXAl1JM5krRo46A6HAafnMNxyXB2LpZY1NNfVsjZhGcer1BTVDJY2yxuD45GNkjeNT43AFrh5wQoZFXcInhJhPnp/wBy5BdqAQCAQCAQCDzTwx+EUn2UP6KnHzbPD/rYo5ZZbd6hZQnpKAotbpLmqtrRikWS+RtXXkOjbxcF7OqZAczQbEMGt516tGjSQqzlfk19/J16PPxn2W9kzkfR0ABjbxk1tNTKAZOnN2MHm08pKinF38vZu8J8I9kgUtUIBAIBAIBAIIjwj5GsxSm7izauAOdTyGwD+WF58V35Gx5QQ870mEzyzOhDCx8Zdxxl7htMGmz3Sk/IAOjTt0C5ICiZiPGVsMMs56cY8XVZLHE10NGXZrxmT1xGbLUt2xxj+zi/N23YG0qZ8Z+jP146vDCby9/b5fv9DtK0NAAFgNQCu1nXpHoJBh0+pQlvZT4b2dh8kIF5GjjoOXjmAkNHpDOb95ShRSkPUr7OV8JZdGXTnEprgFVYhcrna3t+z9vVgsjBqi4C4qeVgmmEVNiFn0bOjOJed5Wq4lWHD/k1Yx4jE3Q60M9h1Hn82+tq9RGXeYRnDzGuO535ap8svGP1j9fq3+AnKfjqd2HSu75TXkp7630zj3TPuuPsf0KjcJwieEmE+en/AHLkF2oBAIBAIBAIPNXDB4Rv+xh/RUw2+DF78UfzVa3o+kuaomU9LZoKCaokEUEbpZHamMFzblPIOk6AqTkZzjrx6s5qFpZK8GkUVpa/Nmk1imbpgYfrH+0PR8nzqKvzcXk9pTl9nV4R7+v8LBa0AAAAAAAACwAGoAbArOUVAIBAIBAIBAIBBzMoMdpqCAz1UgYwaGjW+R3isbtKrllTLq1Tn90R5z6Q895WZTS4lO94jbTwSPDzCwAOmc0BrZJnD5brDbq9ZSMJ+LLzXz2RGPRr8I9Z9Z/aPu+rmxKzXbcTlA36d6DsUUygSbC6rVpRKq+EPB+xq5xY20VR3+Ow0DOPds9Tr6OQtVkIyCphMJDgtTqWPlYdWNvSdlcj0WNgFXoC81txrJ6Lbj1Y2nGF1GpY3C5Gt3cUw6OvopaWUXbLG5t9rTscOkGxHmXe7N33HRLyvafHnp68fPHxh5fp5qnCMSDgLT0UxBHzZG6Q5vovYSPM5b8xU0pr2RswjOPVZuVWJxVeOYLUwOzop20z2HRcf7S4Fht84EEHpBULr5QCAQCAQCAQea+F7wjf9jD+iolu9nxfJw/30lw7KJyer6EtyUyCqay0kt6enNiJHN75K3/Dadn1jo5Lqtzl5Odyufq0fZx+1l+S28EwSmo4+LpowwG2c891JKeV7jpP+Q2AK8YxDz2/fs3ZXnP7OipYQgEAgEAgEAgEAgjGW2WtLhcffDxlQ4XipWnuncjneK3p27FScpvpx8ZZ9em468/DH85+X++CgMexyqxCfj6t+cfmRjRHC3xWjYsuGqMfvlOezqqIisY8o/f3n72uxZWM4FiyhWYbEblVVtwuUDo0sqDvUFQoSxy3wzsygJaLy015o9Gkst3xg87RfzsCmEKdUjew6axV/ixpvcLb0Zp3gFZqXB5mqpe34+cbMFgYTU6lzmnydaYYTVWIWxx9s4ZxLgcrVcKx4fMlfkYlC3R3MVTYfNJ7iT1E5vrbyL0/V3mEZQ8zrjuN86p8svGPn6x+quMgJnnFaBrnOLWVkGY0klrAZATmjZc6VRuPX6AQCAQCAQCDzrwl0EtRlSYYW58kkUQa24F7QEk3OgAAE+pVyuvBucDZhr5GOec1EX/hPsleD6CmtLU5tROLENteCF31QflnpPqA1quOHrk2uZ2rnt+zr+zj+cpqsjkhAIBAIBAIBAIBAIK64Q+EyKhvTUebNV6nO1xU3peM7o2beRY4mc5rHy92zjrx1x1bPP0x/WfaPzlRtTUyTyumne6SWQ5z5Hm5JWxhhGMVCmec5zeX+/JkxXVPMKJPNUTCKZtNlimKUmGxE5VQ3YJEHVo5kEjw2q1KEqqy0wfsSrc1otFJ32HkEbie5+6bj1DlVkOJG6xurYzUrY5VNpPg1Xay1OZquLet7M5NxELDwOsuAvP549MuvuwuLTTDKjUqOHyNaRzUsdXTPp5WhzJGOY5p2tIsQu72dyPDpl5ftLjdWNx5x4x83nPCMCkw/KOmpZL97rqfMeR/vIi8Fj/WNfSCNi6OWPTNNfRt73CMvX1+6fV6rVWYIBAIBAIBBSeJ+HMf2Lv2UqC1UAgEAgEAgEAgEAgxkeGgucQ1rQS5ziAGtGsknUFEzERcpxxnKaiLlTHCJwql+dSYY4hmlstaNBfyti5B9ZUxwnb5+ENr7Ony8c/yj95/KPvVO3Xc6SdJJ0klbcRERUMMzMzc+NnWqUHWFEnmlA80qE0dGlVyi1ZhmxyxSxtmJ6gb9PKg7VDUIlhlphnZdEXNF5abOlZbW6O3fGewA/d6UQqdSOhhs9irTHVjTpcDf0ZUneA1upcDl6ql7TRnGzBPsKqdS0GlydaX4VU2ss2nZ0ZW4PJ1K/4Rmj4z4U4fO7GJ94cvSYbOvGJcKNUa8pr1XWrLBAIBAIBAIKTxPw5j+xd+ylQWqgEAgEAgEAgEAg08WxOCkhdPUSNiiYLlztp8UDaegKuWUYr69eWyaj+I+bz/AMIPCNPiRMMOdBRg6I72fPyOkI/+OpThqnKerP6M87McI6dX4z6z8vaPzlBwtmGBkESdaUDjSiTzSgdYUSeaVAcKpliplDONyxKNuGRB06WZEu/h9SoFaZY4P2LVODBaKXvsPIGk6WfdNx5rcqshxYnWN1bGaXwy6ZtJ8Gq9S1OZpuLet7M5NxUrCwOsuBpXns8emXW3YdUWmmG1GpVcTka0Qy5kzso8J89P+4cu92fl1avxec5ONZryW81wgEAgEAgEFJ4n4cx/Yu/ZSoLVQCAQCAQCAQCDg5XZWUuGQ8ZUOu9wPFU7SOMlPQNg6Vjyz8enHxlm16eqOrKax9/0j3l51yvytqsTm4yd1o2k8VTtJ4uJvQNp6SsuvVU3l4yts23HRjFY+3v98+/6OCs7EUIMgiTjSgcaUSdaUDrSiTzSgeaVAXUsWUUx5RR6N6oq3YJEHXo50Scykw3sykLWi80V5IeUm3dM+8PzDUQqlSN/DZ7FWmOrGnR4O+cMk5wGt1aVweXqqXs+PsjZgn+FVVwNK57V5GtH8qn52UOFelT/AK7l2+zf6c/N5Pn41t/Bfi6LRCAQCAQCAQUnifhzH9i79lKgtVAIBAIBAIBBBeEHhFgw1phhzZqwjRGDdkF/nSW2/VWOcpzmsPq2MdUYR1bfwj1n9o+/6PP2L4rPVzOnqZHSyvOlzjqHIBsHQtjXrjCFNmzLOfH6ekNNZFCokqBQUGQRJ1pRJ1pQOtKJONKB5pQOhVnxJiw02WGYpimKbMT1CHQppUHboahQITlzhHEz8cwd6qCXaNTJtb29F73HnI2KwjcbrG6tjNLY5VNpJg9Xay1uVq6ot6nszk3EQsLAq24Gled2Y9Mu5tx6sbamNSZ2UGF+nB+u5djsz+lPzeM7WxrdHyehl0XLCAQCAQCAQebeGCR8ePyyxyywyMjpwySF5je28IBs4aRcEj1oIv8AD9f9JYh75PvID4fr/pLEPfJ95AfD9f8ASWIe+T7yA+H6/wCksQ98n3kB8P1/0liHvk+8gPh+v+ksQ98n3kB8P1/0liHvk+8g5MlO1xLnPe5zjdznG5ceUk60jw8kzMzNyx7EZ4zvyU3KB2IzxnfklyDsRnjO/JLkHYjPGd+SXIOxGeM78kuSx2Kzxn+0JcpsvYrPHf7Qlyix2M3x3+1LkL2O3x3+1LkscQPKSdZLlNl4keUk6yXJZeL/AMWXrJaLHF/4svWUAzP8WXroMhneWm/EKDMSyDVUTjzSuQY1DnyNzZJ53tBuGvkLmh2kXsduk+1Br9hx+M78kGbKdo1PePMbItGeWPlNH45ZG/JqKhvmlcFSdeE/9Y+jL/yd398/WXZyPc5+LUTpJZZXNq6ZrTK8vs3jBoBOoaSrY4xj5RTFlnllN5Tb1gpVCAQCCBZQY/VxQZ8cxa4SytvxcR7kOIA0tVqEWjy0xPbUn8Gn3EobMWWOIbak/g0+4lDk4pSwVkxnq42TTODQ6RwzSQ0WAs2w1JSDTMncO5tF7X7yUHm5N4bzaL2v3koODJjDOaw+2TeShmMl8L5rD1pN5KGfxWwvmsPWk3koAyVwvmsPWk3koL8VML5rD1pN5KCjJPC+aw9aTeSgoySwvmsPWk3koL8UsK5rD1pN5KA7JHCiLdjRC4tcOkuOkd0lBykyNwYMaJIGFwaA52fNZzuX5ehKGx8T8C5szrzbyUF+J+Bc2Z15t9KCfE7AubM682+lBDkdgXN2debfShg/I7A9lOzVoGfNr6yUNODI/C2tAdTxOI1uLpLk6/G1JQz+KeF81h60m8lA+KeF81h60m8lBPinhfNYetJvJSSfFPC+aw9aTeSix8VML5rD1pN5KGJyVwvmsPWk3koIclsL5rD1pN5KLYHJjDOaw+1+8lBt2TWG82i9r95KDL8nMO5tF7X7yUMabCqSCVk0MMbJYntkjkFyWPabh1iSPaood2TLHENlSfwqfcU0NaTLPE9lSfwafcSh3cm8pK2WOV0s5cWMJaeLhFj6mhKHf+E6jyh6jP4UBMcyNFRIXsndE15L3xFnGMLzrc3uha+valjmdrkc4H4J3ksRSuwviZnxOaDxbi3PbIdPTYs0e1LDb6RgGgEnkL83880pYkGBZF9lQCYyCLOLgGC8ugG179ztB2JY6Ha4bzg/hneSwna3bzg/hneSwdrdvOD+Gd5LB2t2c4PUO8lg7W7OcHqHeSwva3Zzg9Q7yWDtbs8ueod5LB2uGeXd1TvJYXtcM8u7qn+UsHa4Z5c9U/ylg7XDPLnqn+UsHa5Z5c9U/wApYO1yzy56p/lLB2uGeXPVP8pYO1wzy56p/lLB2uGeXPVP8pYO1wzy56p/lLCdrhnl3dU/ylg7W8flz1TvJYO1uzy56h3ksHa3Zzg9Q7yWE7W7OcHqHeSwdrdnOD1DvJYO1sznB6h3ksHa3bzg/hneSwdrhvOP+Ud5LDGIZAiKF8gmz+LY5+YWlgcALnurm2joSxFYqRp+U3N9GTO/6QlgNEC4Brb3IF3Sltv/AGFLEwbwc6NNQAdo4okA+fOF0sbeHZBiN931LnR63RMjzOM6C7OOj1JYmHFt5B7AoH//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTExMWFhUVFRUVFxUYGBgYGBcYFxcXFxUVFRcYHiggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGBAQGyslHx0tLS0tLS0tLS0tLSstLS0tLS0tLS0tLi0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4AMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAFAQIDBAYAB//EAE0QAAEDAQQFBgoHBQcDBQEAAAEAAhEDBBIhMQUGQVFhExRScZGhBxYiMkJTgZLR0xWTorHB0vAjVGKy4TNDY3OCo/FEcnQkJTXCwxf/xAAaAQADAAMBAAAAAAAAAAAAAAAAAQIDBAUG/8QALxEAAgICAQQBAQcEAwEAAAAAAAECEQMSEwQhMVFBYQUUIiOBkcFxobHwM0LhMv/aAAwDAQACEQMRAD8A8VhLC4JUgOATgEgCeAmA+m1ELMwKnTV+zhWiWbXVzQ4ey8QOxGBoFu4diD6I09ybAIVw6z8Fxs2LJLI3R0Mc4xikXHaDbuCZ9Bt3DsVQ6ynckOsh3LHwZPRXLEvDQjNw7Ev0IzojsCH+Mh3LvGR25H3fIHNAIfQjdw7Eo0M3ojsQw6xu3JPGN25L7rkDniFvoZo2DsCY7Q1N2bR2BDfGN+5Qu028lNdLlB5oEemNDGj5TIjdC0GrADqYlo7As9aNKveIKksWlXsEAKeq6TPPFrHyVhz44ytgXwjWO68OAAx+9YhwW11wtDqrZIWKcuh0WOePCoz8o1eplGWRuI1cFyULcNce1SAKNqlamhM6E4NXBK1UST0GLbasWdgbLo7FjrOETs1rIESsWdbQ19mTE6lYC5g/cl5i/ctNyrUvKNU7MqkZkWF+5KLG/ctJywSGsNyezDVAFllfuVpjXNGSJ8sF3LDcnuxaoptt7x6K76Sd0Vc5Ru5KC07Fj1KspHSjuimnTBGxX69JoEqA0mEYhFAV26XJyCdz+p0VNRaxuQUvKDcnQinz6p0V3PqnRV01eC4VRuRQFLntXopeeVeirhrJeXToClzut0U9tsrbla5dOFdFCKNqqVajYIQZ2i6m5afnC7nCaAy/0TV3JRomruWpFoS84TsKMwNEVdykGiqm5aM2hJzpPYVGe+i6u5KNGVNy0POlJzkQnsLUAU7M9vnNSMpunAIrV0iHi7CaFEp2XGNAwaQZvT225m9N8V6+5KNV6+5RvD2PSXokbaWnanh/FRHVqs0SYaN5MDtKVmiHj+8p++34p7xDRkgclBT6dgftqUvfb8VL9Hn1lL32/FNSiLVkF5OaVMNHn1lL32/FObYT6yl77fintEWrA+krWbwCns9XBLa9DPc6RUpfWN+Klp6LcP7yl9Y34pbKx6sS+ncopDo8+spe+34ruYO9ZS99vxT2iKmRGouvqU2E9Ol77fik5kfWUvfb8U9kFMjvrryebEenT99vxSczPTp++34otBTGX0oel5menT99vxS80PTp++EbIKYnKJeUSczPTp++EosZ9ZT98JbIKYnKJeUS8zPrKfvhdzP/ABKfvBFoKYhqJC9P5mfWU/eC7mf+JT94ItDpjL6vWTRdeuIpsJ47O1XdXNH2blJtFamGjZOfWvTLJrHo6k0NZWpgDip2QUzA6J8G1pOL3BvABaOz+DhvpVHFa6xafs9YE06rXgYG6Zg8VY+kKe9TcfY6kYC81KHhSc3XcgFzbN4y2sVhFqtVGg57ms5Ko+G9IGJg4ZInpTwR0KNJtTnb3yWi6GAec0ukHGYiEj6Y+kqAxjkKsxnE4wtnarQ6pTaxznlrYuiGCIENmBJgTtXf6LGpYYujkdXkccklZ45pbVmlQJmocXmnSDnwajmspvflTIYByrRicT2ovS1BouaHcrUxAPo7RO5ehaU0Yy00GUapNxodg1wbJccbxGP9JUPMrogTAwE4mBlPsW1DDG3aNeWZ0qZhHeD+l62p9n4JniDT9bU+z8FujSO1Ma2Fk4cfojml7MLX1DpNH9rU+z8FTdqfTH94/u+C9DrNlRCyBPhx+g5Z+zz4apM6b+74JfFGnnyj/s/Bb59jCa3RoRw4/Qc0/Z58dVqfTf3fBd4rM6b+74Ld19FnYJVQ2N4RwY/Q+aRjDq1T6bvs/BIdW2dJ32fgtXVssZn2bVXcxLgh6KWZ+zODVqn0n93wS+LNPpP7vgtCGp4YlwQ9D5X7M2NWafSf9n4J41XpdJ/2fgtGGJ/JHcnwQ9C5pGa8V6XSf2t/KnDVWl0qna38q0gpqRtJP7vD0S8s/ZmRqnS6VTtb+VP8UaPSqdrfyrUNpKYUVXBj9C5Z+zLt1OoRiX9o+CcNUbPvqdo+C1AppDZz7E+HH6QuSfsBas2NtltwbTvQ+g8uBMzDhH3Ld85d0Vj7BhpJn/jv/mW1vrzf2lUc7SXo7XR3LEmyqGrjSWRbpKsPSKf9JVj6RWrozYsIvbGk7PPqKv3r0nSVnsjWE0nS7CBenaJw6pXkejrS86QoOccRSqwexbkWsnCR2D4LudLjbxQ/FVP9/ocjqn+ZPtfb9iW3WKoyLQ6s7kywtpWek0X3VZi9Uc4EXB7PjYJwE57fxUVjqPcblMFxMmAAThmclC+vsOELpJ32+UaMr7didzQVBVoDYlFQb1wfxTJIHWZc2hCnc/emvqhAxG0htUjaTVUfWhRttyKC0F6TBtUdqsjYlQ0bVO1K604pUFgG12QGYwQl9MBae10p29QWctNItOIhZECZXLU4NSBSNKBjmsE5+1PuTmuYpmhMquwxtFTMoJzFM16CGxWWVSizQmByfJUk2c+kN6r1WAKV5UFRMLBFld/7lTn93f8AzLY8qNy89t9YttrCDB5B38ysv0nU6RXmvtKN9Q/0O/0T/JRSFtZ0wni2M6YWa5ilFhU8cfZfI/RqtD1mOt9Al3k8nVBI9kr1G1V6QpvYyC0loaSWYAQSQAcCTM9q8U0DSu2mmBtbU+5oXpNvs7xSc7nDX3YD23bsEkRBzOY3fgup0/Txnii5f9X/ACmv7pfscjq86x5Hbrbt+/b+TS6OtVKgGvafKIN/FkbQ0QcYkzjtEoNaHBxLrwJJJPWTKk1e0DXrURUFcU7xdybbl+YJbecfRBcCNuSy1e0OY5zXec1xaesGD3rbxY4Kcmn3/wDWYZXqkGajiEnOSg7dI8E4aQbxWxRiphQ2zimutWG9CnWlp2qB1ojaikPUKG2KM1+KFvrTtTRWRYaoNstXFPbauKCMrq1Zn3jAxPwxKfYWgT52eKC2qrLpJzUukbQWw3EEiZOGGyOHFUGGUmVGJMHqRrkx1LDNI0lIosB6lY9VqdWDkCjds1ia99N7bPTZycYRN7rwCLfoCk16ka5Tac0+61Oa4sa26IAbx3nbkh7apKpd13Bqy816kFRVqTCVZY2EjG1Q8AlR1WdSc6oqleuEDSMvp6oGWthmByLv5lUdbWmGh0kmE3Wnyq7f8o/zhQ6sWC/aBOTcVweuinmbZ2elk1jSLvInck5M7kJ8ZXdFcNZD0Fg0kZt4hSxPu2ui6Mg49hBy2rY6crsqF1cuINWCGs5MNvXR5zA8kYDdmVhdDV3Wm00g1vlG+wDru4ncMV6vrRqjTo2U3GgVaHJy/wAr9veH7SA45g+VhgGrq9LNwxpe+xzs8FObfoF6J1xqUKIpiA5jXtpvDA4i8S4yXOw8rgVmKlckkkyTiSdp2lROBBIOBGYOBHWE2VtJJNtfJhdtJN+B5qppqppCbCrYWpLyydy6ghcEbC1LAqBIXqCFyNhUXbPSLyGggTJkmAAASSTuACdQrFgDxPlNddIkFrhljhiCGnqKptcYMZOEbMp48R3J9WuXBoOTRdaNgEk/eSeslO0FBnTNpoup0GU7xLGQ4ne5xMdYETs3IeyzuuX48mbs7JwMd4UNksz6k3QTAvGATAkAkgYxiO1OqtcyJyeA4EGQ4Tge0ERmCCDilsOiTlcUhqIjq/ZDbLT+1dAN6pVfIENGL3ScBh+Cr6e5IVnCj/Zz5OeWyb2M8cJzgZI2+ArsVQ9PY5Vg5deT2DUt3tymp1IzKHX119G4ahY2sbz7EvPUJD1IHJ7sNC860kqMvVUujH709oJEwcU7ZOoD06f27f8AKP8AMEZ1JoTffHBB9Ktmu0f4bv5gtbqrZ7tGd5XC67/lZ1em7Y0jyNcuXKiAzq1pI2eqyqBJBqCDxDOB+5a3SWtNSoAeS5PPlL9JjtoulroBBxOJ4e3D6PIvU7xIbyhvOAktb+zvEDfEr1zX7WCy8wdZ6dmfBdTDa11jQYcx8xN7EAjELNzShBa9+67fR+X+gKGFpud2/FeP1/39TG2DWJ4kPexwAugVJF0k4PLYcJGU7J3K5X03WNF9NjWNLoLrrKZIbtjES3LyllalmY/Ft8YxOc7gIGByGcYrm2BzYJMRgCXXQCcpdMAHHsxhbXNP5NXjj8GnsmkrMy6KoN45ue1zWDdEYyeMDjtUdt0lUDzzelSeBscaYg4egCHHA+kTwWcp2h1KMw04kAyOBH67UtXSTHQHMYRM4C6QTtbdIu/0Q89qg4u9h12li4TVsTmEDzqT4B/0Pvb8wU6nXa4mGvAwMPABxE5jArPVH0XYh7xgBdIvRGV07sBvOCZQs1CC7lS0g4HaNxiMcYyxU8j/ANoehpwkQmjpK0kBja3KYgNHlFxJOADIxd1ZovpKg6ixpFRrjdYTTJHKeViSYaW4CPSGZMLNvGrRjp+GS2q0uqGXGTAGzADAAAYAKFCxaXCoXySCPMiA2cox2Qcdsp50g7ogmcgcY/HZkltY6NDoTSIo1A4zGGWYghzTGRhzWmDnEcU7S1os8XaDXXS5z/KkXbwALGtk+T5IM54xJiTnxbTiCzEHYZEQZ/DvUnORjhhBM45DbllOEobY+xbbUISGoqYtrcf198KtUtx6beqDt6wi2JhS+kLkFfb3EOl0QMA0QXHYJOQU9l0i4N8tmMZ4x/zghSV1YNOroJVKrWxeIbOInaOG9Uq2lAAbrTnAcfNO+N6iFpDsXBuQxwJHUCcTngojSa4yXF2OF9wH34K218MlbfJKy21smlrnbRAkdW9TC1VSIcQ0gmCBGPHeFUrspnECANgx/FIWj0nEAxEDCM8IOB4IumFOiwyo0CXvDyZ9JwjhJbiuo29smMAM5ccjI2NVUUmzg1sDpGewZFdTDnHC9AOERB7Bgjd/AaIuUKbq1oY2mL7uTdg0lxzB2gQvSdDaKrNpNaaZB2gwsPqJeGkaV4R+zq+3A4lexscuL1sm8zOl00axo838UbL6pvafiu8UbL6pvafijhd+oTS47lzN5+ze1j6POdc9FsoVaTKLQLzXGBjjeie4LQa86rW6zWZz6tFga0079VrrMQSSBIu0WVbxddkzv2KjrlQ5S12dhkTTdiLsggkgi+5rdm0q9rFpK12izubXt1WtSIDnAUbIA6CCyOTq3wA6Jw2GQIK6GPmcIOFfW/X7eTSyaqbs86a87Cf+OH6zTq9mdTgOuiWh2DmnA5TdJjqKmp0wQIY0ztLzs4SPuVm1tpGsRSbTbTmAXl5gCAS7E4nEwFtasw2DX1HHMk4ASSTgBAGOwABPo0nOyGWZRe16NszG3haWVD5PkMY+JMz5bgMo2jbwQ59S7gDhtGO6DB3wTiq1ryLa/Ao0eSJa9rsQDE4Tv3e1WaGi2ljnveGhhAguAc4kkeS0jGIO3BV2W50yHRhEjd+oVx9sydeEzEySSMZJGW1WlFk2yCw1HtdFJ3Jg3QasG8BImCMQMcQMSBtmFWkNLhN8GROInHExnPWitetVovLOUALTEscImP4DjgSOMniqlSsx2LoDt4BPUSZnvScV7Hb9FZ1qMBuEAkxA28YnYOCaLU4CMCFZo0KJHpkzHnta0572Exgr+h9HU3VmucA5gMmnLodhkXNIIG2eCahN+GS5RXkHG2kZNEYjPq3daZzoDK9jnJkewR+oXqml9S7I5nK0A3C4HMa5oi8In+KZbxJ2CYGJ0rohtFxa+gabhlfDxhjiL3nNGAnPFZHjn7IWSAKslubMGMZF67PZOIkYKQ2lokQ3zg5ruAyEHCMNs5laHV3RtnfLHWZznT/aQXtE7HTg2N84qzpnRDAPIZTgZYAR/RZo4ptW2jE8sE6pmOFZpmTdM8I/4V+zWirybmNqQHNxbkHtzIGGIz2qvUshEi432T+BTaTS3ZAgjPYcDt4pKMl5Kck/A91EzBu5TjJyxxEpOSdnwzaDhtycevsUTWNBkZmdp2ggj2glTUyAZEA/0j8SnQWRvq1MovSIkAcD8OxS2VrujB/0x2EqfkGn02dsd6sUKtJpAeCAfSESOORlNQ722LfsMpuacJM7RhnOGzAbFfsNkqSXNoNqt4S4TuusIIw4qtb+SpgmhXvzEtdRLT7HEkdwVGjWLXNcJw6t8479quhbfIe1ds9Wlb6N6m+mTTrRfZdnDEjeOK9GFqqdIdi850DbHVLfRLmtB5OqPJBE+TniV6IvPfaVrO19Edbo6eJMFSml3FRFvE9iQN/i7v6rSo2ilT1bZpHSNGzvJDeb1HyDHmvHA79y1L/AlZM7zvfP5FT1J/8AmqX/AIdb+cL0PTun6FCeUrUgA3Fpcb+M3YAmcQV2OlvjSRzOoaU22efWjwPWVoJNYtAxJmY+yEDtPg9sVMmbZEyP7MkcMQ4T+KM27XKhVvBtM1JxbifIGwEuJM4kwMrpWPtVte8gAkGBEHBwxJcS7qGEbR7enHEq/F/BoPJJvt/JSterViZMWquRws7Y7TXCHP0fYhnUtLuplJv31HJlrqVWXXXnGmDEz52RwxkA5jYYkJhpB0kGGgDE4Thjs2HDjO1TrjfajJc0rsa+hYx5rK5xGLqjMtuAp/inctZ4aOSedhmqMpz8zA+1VXvwj8du9Ru4I1iuyRKk33bLFcWV1R55OqGlxi7UBMEnptM7Myitg1Xo2hhdQquN3F1N7Re9jgYVXROr1e0EXGGD6RyHWVt6FGlYaJptN57vOdl7AsmLAn5Rjy52v/l9zL2PQQODScMCbowOO0nDdgvR9XKPIUf2FBr6gAbGGOBMwAZxjfntyWSsVok8Bk0T35A9622r1py+7ALYeKKj2RrvLJyVmvq6BDaA80lhLw24CLxkwAchJyGGzJea6Q0BUtF9j7TTa5haAzk7xYwSYDDdutcS04SJYF6tZ9JQ2Hfa+IXlvhI1ZqVrRzqz1Q1xA8iS0hwwLm1AdojDDJamLbumjayONJpgoatVKTbottW70Wi6PYJVK1aOO2vUd13PyobX0xpCiYq+WP4gMeoiCVI/WBpYHPaQcJbkQSTEA5jCVtxcPD7Gu1O78/0Iq+jo9M9g/CENqaJOxwPsj4okNMUXelHWCE9tem7Jw7Uawl4KuSAb9HVBsnqVd9FwzaR7FqWsU7KfBS8PofIzH8m7ou7ClLSMwR1iFtWaPYcBLZ6Jge7l3Kjb9W3AXxeqAbA6HgcJkO7lMsTQ1NPsZ2lTvbWjLMgcOs+xNESiVl0W2qbtOs0PJjk6wNJ07gcWk8JUtr1XtlPF1neRvYL4+xKjuVY3Vh457RP8FX+VekcsN/3LzfVekRbqTXAg3asgggjydoK9MFnbwXnvtFfnv+iO10T/ACkBeXG5OFUKK4Bt7U28N61DZO0ZogWzSdOly1WiOaVHF9IgO8l4wkg4Zdi2uh/BrZA8v5xXqupvLTyhpuggAlpAGIxBg7l5lVt9sZbWPsDg2q2i5hLmtcILpcIcCNyLN1j1k2VqY6qVD5a7PTbLGqOZnpzZ6DavBrReQRaKzCKfJOLG0W32+Vi4XCA7ynYtAz6oGDwM2MCBXrgXbsDkt8zNyZ2SsgdZNZf3hn1VD5SYdZNZfXj6qz/KWb8fsxVE1p8CNiM/+otOPGlsyjyE+h4FLE3HnFpJ2Emnh1eQsf4y6zevH1Vn+Uk8ZdZfX/7VD5SmpeSrRtG+BaxTJr2g+2n+DETsHgs0fSMgPcRkXEHuiF5v4y6y+v8A9qh8pd4yay+v/wBqh8pUpzXyS4RZ6xatS6TmwK1VjdzOTH/1WcoeD3R9ZhqitXIDrsl1I4m7GMRHlDNYg6zay+vP1VD5Sa3WfWT1x+po/KWTmyVVsx8EL+D0Jng7sLXsYbTXDqjS5jC9jS4CJAAaJIkYIno7VSytqOptq1S5gxDnMdGWYiRmMwJ2SvKjrPrJ68/VUflJRrNrJ68/VUflJLNlryynhx+kexNs1mZSNZr3lrXXSWkZkhsHG6IJEzgNuSraas1lBpNqPqg14DAA3aWNxkYY1Gryc6zay+vP1VH5Sa7WfWTbXP1VH5SnHPIktm2/fgTxRb+K9Hp1o8HtlqOLTUr8fNA2bbuOaz+ivB3o6103VGvtTQ110gmkD5odkxpGThmsj4zayevP1VH5SRusushGFYx/lUflK+XI4tO7BYopqqo3X/8AF7B660dtL5a4+BWwettHvU/yLD+Musvrz9VR+Uu8ZNZfXn6qj8pYrn9TJS+huW+BqxDK0WodT2fkUo8EVl/erX77PyLBeMmsvrz9VR+UlGsesvrz9VQ+UmpZPbFrH0jfjwTWYf8AV2z36fy0jvBXZh/1VsynzmH/APNYLxj1l9f/ALdD5ScNYtZf3gfV0PlJ75fb/uGkPSNq/wAEFidN60WoxnLqf401orJq9SosH7Ws4MaBJNNxgDM3RJXlY0/rL+8t+rofKSjTusv7yz6uh8pClk+onCH0NHr9Zmtt+jSC4h1O1HysDF1kfepG0gsbzvSdS22V+kKrX3eVbThrGxfbB8xjZkhua2zYXJ62+Tv6Oh0yqFIzVSowZFUtIW1tNhMycgOOzb7fYmlZ3SdsvvgZNwEbd57fuWvhhvKjPklrEu6EAvScztwR3lY/QWd0fXOAAPaPgiVSq6Mu8fBd3FOlRypxbdll9rIMgkbPR2f8qEaScdrp2xc/EoZVrv2/gqdS0u/UK3kJUWHfpNzcJMDfcyjg5KNJOOTnb8qcZf8AcgNC1NE3mE4YQWtg7zLTPcoeX3AdgUcjK1NH9LuyJI3eaTl/3J30m4AkXzM53PZMOWc51hEDOcm/BPp2g8Oxv4p8g9TRO0neB8p3YzZB6WSjbpJw9Ixjj5OY3QetBHWknd7rQubW4Dsaq5GTqHhbnTILjh/BG3LyuKsWa3knEuBx6OU4bVmqdXH+jVeoV9kD3WpxmJo0ItBa0AXsIGN3LCducKnabdkbzsCejG7GXKCmTGWePo9X4KnbK+YI7A38FW3YjXuXKmknbzGGPknEmNjssk2jbnCTLjvwb+ZCjaeA7GqA1uHcOCjcyah76TJwLnA4EgBv5uCX6ScM5+z+ZATacIujsamCuRsEdQU7j1NA3SZOILjIHRiMY9Lik+lztJGOHm7tuPWgNSvM7zwH3p7LT/XAZdcJcjDQODSLgPJvGBAkt3YTil5/ObiI2YbuviUB5X9QPwUgrjd+u1J5GPQOMtp3iPZ7PxT+cg5x2hAxaG44Hh+pSstA3GUuRj0LtstEPa5oEsIcMsxiMuML0JhvAEYggEHgcl5dVrgnat1q5ar1np4TdFz3SWjuAXP6zvUjb6ftaM9p21cnTgec7AcN7vZ95CyjGIrrJZ3veLrXgtES0GPbvQCrY7SMhUPsKx9NrGP1ZWe3IMWTAgoga5hZVtG2dGp3p3J23o1O9bqyRRrODDlapwVV7uCGGz2w+jU713M7Z0H96fNENGXXAbk26FT5lbOg/vXcxtnQf3pcsQ0ZcDFIGqhzG2dB/el5hbOg/vS5UPRl4hOah/MLZ0H9676PtvQf3quZC42Emq3QKBfR9t6D+9OFgtvRqdpTWdCeJms5XyUPrFA+ZW3dU7T8UnMrb0anafin94iHEwm5MKH8ytvRqd67mVt6L+9TzRHxsvEJIVLmdt6L+9LzS29B/elzRHoy4GpwaqHNbb0H96aaNsHov70cqDRhO6pbPSa4kOeGQAcS0TM5XnNnLZvQW5bNz+wrotfRf2I5UGjDlOyucYbdduAfTkjH0Q6dmSZdQcC2dF/YVJTp2w7Hj2FDyR+P8iUJfP8AgJwthqLWBbUpnY4PH+oQf5R2rJWTRNVwl1V44Bq2uqOim0w50vLjgS7dnAAC1eoknBmfCvxBo2HgT7FGdHu3DsCIEHf3ptziO1aCZtlL6MPDuTho4bSO5WuS4hP5Ib+4p2IqOsDN/cmmxs3nuV3k27z2JOSbxQBRdRaNiaaTdyIXG7j2pGtb0R2oAHmm39BdcG7uROP4Quk8OxAAzk+HcuFI7u5ETf8A4e9LdJ29iLGDxRPR7l3N3bu4Ii1h3nvSgO4pADhZndHuCc2yu6I7Ar93rSlhQFlDmjuj3JRZXbu4K9yf6lLySAsH8zduS8xduV4UhuTjS4femKwcdHE+iO5Ru0O7+HsCLCmd3cl5L9YpUFgc6H3tBTTo9o9Afr2o1yPDuTDQG1o7EUOwPzYjJje5OFF/qm/r2oryDdw7F1wdHuSHYPbRqerZ+vapmCplcHerfJjd3LuSA2IEU9qmprlyAJtiVcuVIQ0phXLkANGamXLkgGjNPbmVy5AC7QufkuXIEcM0jc0i5AxRmp6C5cqESlI1cuSENCbVXLkxjXKBy5cgDqaec0i5JgjnpjVy5Iolpp7Eq5Aj/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEBUPEBIVFhUVFRUYFRUVGBYWFhUWFRUXFhUWFRUYHSggGBolGxUWITEhJSkrLi4uGB8zODMvOCgtLisBCgoKDg0OGxAQGi0gHSYtLS01LTUvNystLTItMi0tLTUtLS0tKy8tMi0tLTUtLy8xLS8rKy0vLS8tLS0tLS01Lf/AABEIANQA7QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAgMEBgcBBQj/xABQEAABAwEEAwkLCAgGAQUBAAABAAIRAwQSITEFQVEGBxMiYXGBkZIjMlJTcnShsdLT8BQWNUJUk7PUCDOClKLB0eEXJENio7LxJWNzg8IV/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAECBAUDBv/EACwRAAIBAgQFAwMFAAAAAAAAAAABAgMRBBITIQUxMkFxIlGhYYHRFBUjwfD/2gAMAwEAAhEDEQA/ANxQhCAFR9+LTNay6Nmg9zHVarKV9phzWkOe66RiCQwiRiJwV4Wa7/n0bS86Z+FWQGVf/wALSbuMW1DOMmo0kzrkulKG57SXi6n3jPaWk2TvG+S31BPArVoRMmvIzMbntJeLqfeM9pLG57SPi39tntLSwlgpoRJ15GaDc7pHxb+2z2ksbnNI+Lf22e0tKBTgKjRQ15GaDc5pHxb+2z2kobm9I+Lf22e0tMaUsFNFE6zMzO5rSGqnU7dP2kDc1pHxb+2z2lpwK7KjRQ1mZiNzWkPFv7bPaR82tIeLf22e0tPlJJTRQ1mZj829IeLf22e0knc5pDxb+2z2lpxKQSp0UNZmZHc7pDxb+2z2kk7nrf4D+2z2lphKQSmiiNeRmbtz9v8AAf22e0kHc/pDwH9tntLSyUklToRGvIzM7n9IeBU7bPaSTuf0j4FT7xntLTCUkpoRI/USMyOgNI+BU+8Z7SkaKraRsFps9UuqMDqzGlpeCyo0uAe1zQ4gy0nMYZjELQyqtu276yecs9YVZ0lGNy0KzlJI3tCELOaQQhCAEIQgBZrv+/RlLzpn4VZaUs03/voyl50z8KsgI9lHc2eS31BPAJuyDubPJb6gngF0DnAAlgIAS2hQTYAE4GoaE41qgmxwNSw1La1La1RcmwgNXbqdDUq4lybDF1IqENEuIA5VH0hpNrJDYJGZ+q3n2nkVbtWkajsW9t+X7I/ottDBTqbvZGGvjYwdo7v4LE+3Uh9b0O/olUqzH944HmOPSFSKtSo769R3k8UepxHTCZvVAZ48jIyCRzEAFbnwuLW0t/8AeDPHHzv6ki/FqQQvC0LugvOFKucTg1+UnY/l5VYXNXLrUJ0ZZZHRp1I1FdEchIIT7gmyF5FrDRCSQnCEkhSQNkKrbt++snnLPWFayFVN3PfWPzlnrCpV6GXpdaN6QhCxG4EIQgBCEIAWab//ANGUvOmfg1lpazP9ID6MpedU/wAKsgEWQdzZ5LfUE+AmrIO5s8lvqCfAW8wHWhONC40JxoUEnWhOtauNCea1QSDWpxrVCt2k6dIGTJGoauc6lLsNifaaLKoquZfBN1oGGJGeepX0mo5pbL3KaicnGO7HHkNBc4wBmSq/pPS5dxacgdRdzn6oXtjcdPfVahO0tC63ccwfXf2R8SvejLDU3dyu/BmrwxNRZYxsvJTvk5di7oGoczdfSuVKTRiRe5yFcK24+9/q1BzNaop3CDx9bstW6OOo95fDMP7diPb5KdUtbZu4g8vxkvMtNuh1x45RsI2grQrRve03tg1asjI3WyFGte9nTqBoNatLSYIa2YMYHDkWiHEcLHv8F48Nrd0Z/aIMbDgDsOw8n91cty+kTWow88embrtp8F3SMOcFeDuw0MyxDgmvc8FtNwLgAQTUc2MORpSNxtoIthZqqU8uVoBB9D+tWxihXw+ePbdHrh1KnUyy8F2cE24J9wTbgvnjojBCSQnSEghSVGyFU93ffWPzlnrarcQqju+76x+dM9bVSp0svS60byhCFjNoIQhACEIQAsy/SB+i6fnVP8KstNWZfpBfRdLzqn+FWQCrGO5s8lvqCkNCZsY7mzyW+oKQ0LcYRTQnGhJaE60KCRbGrx9L6bayWMPO71hv9eralaetzmDgmg8YYumMJiB1KpWt9UDiOJAyBJgcy6mBwSnac/sjnYvEteiH3YrStfJ4N5gPGLSD0nmOK0jce8HR9FwdhcJkDMB7jkRyLPdH2ZrmtfVxcRMaocO9Md8IORkLS9zlMNsdMMAENdAyA4ztivxSUdOMPZ/kjhrSm/BNovY+S10wccG5n9lPMvN71xHQ3+ij6Nq1HUmuq3b5m9dymSMMSo+iK1dzHG0BgdfcG3CSCzC6cdea4iivodhSbPS4R/hnqb7K4aj/AAz1N9ledoytXcavDBgAeRTuEmWf7pyKVYrRUc+oH3Lsjgy0mS2MbwORVNtti8U2mydwz/DPU3V+ygVnxIeYmPqZjoUOhUqGs9rgLgAunXqzx59WoJHDVPlF3i8Hd2ca/wA85ROrpV8vgrm8mX78Vo/zlCkNdIOPQ+oG+t3UF5e4t17SQA+q1/8ADTuH+Jyl78lS5pClU8GzNjlcatW6P59BSd6SxEur2l2TQ2m07XON+p6qfWuzGrlwdvoZJ0/5bmhOCZcFIeE04LlHoMEJBCeITZCkgbIVP3wM7H50z1tVyIVN3w87F51T/wCzVWp0stT6kbyhCFjNgIQhACEIQAsx/SC+i6XndP8ACrLTlmP6Qf0XS87p/hVkA9Yx3Nnkt9QUloTFjHc2eQ31BSWhbTEKaE8wJtoTGlqzmUXObgcBOydfxtVoRc5KK7kTkoRcn2PN0/b6Rc2kMXA8Y6hP1eUzHModOysOY9JXjWyyveIa4Dln+mtTxaLrcTJjE8vIF36dHTioRZwK9TPLNc9Bxp0m8UAYfGOtW/QVqHyKm+W4tddkgAm86BJ5lkWlbeTOK1PcTU/9NoO/9tx/icsvE6GnSjJ87/0zdwuLc2/oehoW2VKtIOrhjamN5jXNdAniniudmIOa7oS11atO9WY1jrxF1rmvECIMtcRjsTthtDnMvvgYuyiAATH1jq5epc0fai9pc+BDjkcLsYHM8vUuJc7NuQ1oy11KhqCoGC67iXHB0s1EwTB6knRtsqvq1WvuXAe5FrgXOAJkkBxwgs2YzyJWjbbUqX+Faxt1xuXXh15g+uYOHMpNK0hxLZbnxYIMjmlWk7NrYl+uz5Ays41HNN2GxEOlxkCZbHF9OpJFfuhZLdUCROU5ZqNZ9IOdWfTLRcHePDgb2DDEftO7J5E/8pPC8HGETPQMevBVlsI7mO79DXP0hQa0Ek0GhrRiS41qgEbTl1q16Bq2KwWanZalpoio0TUF9pPCOxdImc8BOoBVDfxqxb6MZ/Jm4/8A21FQKGGuI1DVz7OZdCnBVKcYt7HhUdmz6EsukaFX9VVpvOxrgT1DFOOCwiz2sAgtJkZEGCDyHUr/ALl92d67RtJzwbVPoFT2uvarVcE0s0Hc8I1t7S2Lo4JshOuCQQsR7DRCpu+JnYvO6f8A2aroQqZvi52Lzun/ANmqlTpZan1I3dCELIawQhCAEIQgBZh+kJ9F0/Oqf4VZaesw/SG+iqfnTPwayAlWP9WzyW+oKS0Jix/q2eQ31BSGraYxxqW+kHNLHZOBB5iktRXtDabbzv8AykU29uZEmlFuXIo9Sm9lR1EglzTHPsPNGKbtT6TP1rrx8Bmrynakae04ajyWQ0RBcMC4DITnHxyKp26uV9bSpzcVKex82oRlNqHI9C3boKLcG0KR8poeety1zcPaGv0bZ6l0NBYTdaMALzsAB6l88vY55gCVv24BrhomzAReFJ0TlN50TySuVxboVuVzuYGlGF7cz23W2mNZ7D/ZUsBQ6PDlrSYB1gwTnhN0xlsUpl7WBzz/ACXC7nRvdHYXABsXSowFXjSW99xYx4vLyqGSSAERhP8AIj1pukHfWIPMIj0mU5CgkxLfupzpCkTgBZmydndamXKs7NKo7vWw0ZD+Z5Vp+/M+iy20nVZJ+TtusAknulTHHAKhO0pUP6umxo5Zcf5D0LsYemnTW5iqTeZ2R5rQ5phwIXp2R8qG/SlQm5VYxwOwFp6CDgVKsTdYMg5beY8q14efqseFZPLdmt7i9IGtZQHGXUjcJOZEAtPUY/ZXtkKn73M932dy6+6fyhXErl4qKjWkke9N3ghsql74+di87p+tquxVJ3yM7D53T9YWWp0s9afUjd0IQshqBCEIAQhCAFl/6Q/0VT86Z+FWWoLL/wBIj6Jp+dU/wqyAm2L9WzyG/wDUKS1R7F+rZ5DfUFJathkHGqp7prW5xc3lu9Az6yrY1VrdVYC08O0S0xf5DlPMfXzrfw6UVW9X2MPEISlS9JSbWYXjWl0qx2yiCJGRVbtrS1y+nlL0nMwvt3Pa3KWJrgSRiSfQto3P0AyxU2HABjp2gXnLDdDWwsoVi0kOa0lpGYkZjmgraNxNSNHWeTjcMk7bzpkrh8Wu6cfa/wCTo4GElXlK/b8EuztoCmzF72wSC4OeXAuJxJBOvqU2yvp4hgjaLpb1SMehFnr03tDmFrmmYIgjAwfSD1JwEbFwEtjrttu75nSvObwUvxcePxsC6HY4AEHDmwxXoFy4Y2I43JTQzZywDi4asRdJ6CBtUhIEbF3hBkiQMj329HGrpCkdQs7fxai8CjoNsZSrVvq6RfTtlNrGiTQabxxjulTILK9O6Tru4rqjjOEAwOy2AvpMPONLCqVjjV6dWtXcVKyFbpbHwVVogiQSPRKLAYEnJcoUQyzkOyO3bt6Fcdw+5F1e7aLQ0toDFjTga2wxqZy69WGKzykqcs8tr72NMU5Ryre21y2bg7A6lZA94h1Z3CRsaQAwdQn9pWApwpBXLnNzk5Pue6VlYQVSN8rvrD54z1hXcqkb5ffWHzxn8l51Oll4dSN3QhCyGkEIQgBCEIAWX/pEfRLPOqf4VZags23/AKyVKmiQWMLhTtFN74xusuVGlx5Jc3rQHq2TRxFNgvtm6zbhLQcVMbol2p7fSvmxu7XSoEC3WiAAIvnIZBLbu30tkLdaeh5Xoqj7nnpo+kxop3hN9KUdFkgglpBEEGYIOYIXzZ889M/bLX2nf0Xfnnpn7ba+07+inVY00bLbt7+pwhdRrMFM43HBxjmIXlW/eyrPGFemD5Llljt2+l8jbrT0vKT89tK/brR2yt8eLYhK1/hGb9DRzZktzTbJvX2hhdNopEOa5pF1+v8AvCt+irBpCz0GWdrrK5rGxLhWkySTIGGtYF89dK/brR2yj566V+3WjtleNXHVKqyz3R7QoRg7o+hbHo+002Cm2nYw1swIqnMlxxdjiSSlVbXbWzxrJDXBpwr4EgOA2ZEZcy+efntpX7daO2UHdvpb7fafvCvHWVrJFsjve59B1LfbIJD7Hg8sP64w8fVPKuPt9sb3zrJ34ZgK5h5yBCwjRu7W3S8V7daouG6WvxDgQZxIBwBbH+7kUM7tdKfbrR2yodbfkWybH0BZLdbqpeKb7IeDeWP4toEObmMTjzhS2i35/wCUnmrf1Xzp89NKfbrR2yj566V+3WjtlFVS7DK/c2ndNuTtVsqis6pQa5rAwACpdwLnSdZ77kVWq70dpdV4V1po5DAMeByws/8AnppX7daO2UfPTSv260dsr2eOqNKN9lyR5rDwTb7s1nc5vWFlo4e11aVZrB3KmGuuNdPfOB76PWeQK+nRTvCb6V81jdxpb7faO2Upu7XTByttqPM5xXjKvKTvLdltNLZH0edEP8JvpUd9gghpeJIkYPOE3dQ2lfPXzz0z9stfaf8A0XDu00wMTbbUOdzgq6rJ00fQYsAMkVG4RODhnMRIxyOSom+nZLosD7wINtYMJ1RtWafPjS32+0dspyw6Wt9utVlo1a1auRaKZYxxLoN4SQOYGTsBUOo2rBQSdz61QhC8z0BCEIAQhCAF5u6DS9lstB1S1uaKd0yCL14RBAYAS7OIjWvSWQ769rFfhWsMtY0M5LzXEvjpwPkIDLd0D9GvtD32L5TSpEyKbqNJ90ziGHhwQ3YDiFApVKNM321KrnXXgB1GmwcdjmSXCs4iA4kYHEDnTNy7lnliARHJI9KRQpztEwJxiCcSYxyQD3y5209ZR8udtPWU1Xc5zpdmdgDcsMhhrT9dgiWkmTk4cbLMuGrklAOWmrRqkPdVqtdcptIFJj29zY1ktcazSZDQcRmSm+DoeOrfcU/zC5YgIxJE5Ei80A4OJB5NglNXSHYcu3k1IB/g6Hj633FP8wjg6Hj633FP8wlWtgcbwOsgC7dIAyvBou9S7Qh7brjGMg3bwyxk98gE8HQ8fW/d6f5hHB0PH1f3en+YTbZbhnM5ic4mAfjBOOoQA5pOMy2DgNUnIygDg6Pj637vT/MI4Oh4+t+70/zCGNFTF0gkjFreLEGZA1zC497jDHDCZy43azOe1Ad4Oh4+t+70/wAwucHQ8fW/d6f5hLNO6AWme+4rmyWicJkRJgZJuzUgdZbMgnEtiOTHUgO8HQ8fW+4p/mFzg6Hj633FP8wm6oJOIz2COoZJ6uzAQb0knvTeGy87Xnt1cyARwVDx1b7in+YTtS2htNlKm55DS83nNDDx7uADXuwF2c83FM2d7gOLyjEBwg55jXATQZDhIPxnHxrQDvy5209ZS6OkMSHuN1zXtMC8QHscyQ0kAkTIxGITVoBcbxxJzgRlgMAI6lxjnFsAgRMAAyb0h3GGYjUTrQC+DoeNr/u9L8wtN3ndM6Hs1QtfwvyqpIFatTY1gb4FMMe65yk57cgsyo07owezHO8xzj6WH0L0dz1D/NMMgw6cBA24AgID6wY4EAgggiQRiCDkQV1VzcLbw+zcDJLqJgzHeOLjTiPqgcX9gqxoAQhCAEIQgPP0/pD5PZqlYReAhgORe43WA8l4joWNaakUSILjGqJO04kDaVet8G33qtOyjJg4V/lOllMdV8xytVF0pTrOHcnsbEzfaXTMRBD2x6c0Bm1sY29gy78c5TNpuudIbAwnBvNqAXraT4YOIdUmc4LoM7eMepeY5hOz46UB0XLkcHj4U8vg9IH903QDQeM2eTLMbRy+pPU6rhLWmARjGsQRBx2H0rtSzlsOJHGExBwGCAbtLATIZdBxjE4c5Mn+ycY1paWinJkm8PBwwu8hnHlS2tfVhpIygThAGqSYHSuU6jmGGnHKQNjgfXB6EAzSa0O4zZE5bRJwkZYJdopzxgyAcugRgTnj6078nMB8jkwPKOjmmUoPc+ASMMBMwBMbcBggGmNaQQGySRBj0RrnBNimATI6COX/AMKVwbqZzEjDmkXSDBjIpbbM6oHVJGGJnMzxtuPelARq7ATLWRyZ+kldpXIILJO3KMCMRrxx6E9wrouXsNmMZzlO1FSzOZxiWmZyg5YnI4d8EBENMA4jDmHJ/dKqMBybs9ESZ9PSpPBmpJlogayBgOKACTGzBcqPcyac4TiBkSCBOeOrFAMULgBDmXjA1xGBnLPEjqTJpY5egZ4alJdRxJBB6DyaplD3F5JcROeWZnk15oBqvddi1gAjDXPSSksAi6WgmCBgAcwZkZ9O1LgtHo+MUGlPGBGUnCNZEZ45hAMBsOBgYbQCOo56utDw0xA1dZk449A6E8MTdJjPGCfRPKuwWiGvkHPMbYkTjmetAM02iILQc9W3l6Avc3MNiqCGHMYi6IGsnHJeQ1p5Oo/1Vm0BRtJAuVaYGx4Lh1cIIQGlbk7fwNqpkni1O5O53HuZ578N/bK09YrTaTTul3GiC4YcYDvhiYxxGK1nc7pL5TZqdf6zmw8DU9pu1BzXgUB6KEIQAk1HhoLnGAASScgBiSUpU7fS0saNi4Fh49peKQ8jvqpjZcBbzvCAple3GtUqWl2HCuL8dTIimDyhgaOeV5Vs0ex0vL6gJxIbVqBsxqaHQFKDbzC1xwIg4DIiCIIheQ7c3YxjwTTyFrP5NCArOlLPFS6C7KTLnHXhmeR3UoBo4Zumcsctsr2tIWCi0FrWACZgRC8Z1BuwIBFnpBxEktBcAXYmBIBMDEwIMJ/SFmpscW0qpqsw45a6nM5i64zgmuCGwLraTdikHadGRiSMJ157ORJ4PjRjq28p/wDylii3YFKdRothrmOcYa4kPDRLmB2ALDkHRmoBHFHyusrooc/WU8GWfxT/ALxvu0oU7P4p/wB433aAZFDn6yuiz+V1lPilQ8U7tt92u8DQ8U7tt92gGPk/ldZXDZ/K6ypPA0PFO7bfdo4Gh4p3bb7tARjZ+frKSaHP1n41KUaNDxTu233aSaVDxTvvG+7QEMsMxJ6z8bUp9nAGBMxjnnienNSC2hlwT/vG+7SSyh4p/wB433aAYoU7xDZAk5uJDRrEnZkmq7LsgHKRgZBjYdkBTKtNl1rmAgGRBIMFsawBqcNSYLUBwUm3TM3hEd9jn0DNNNZxoJPp1Z5c6UaLdgRwTcoCAk17IBBbImcnl08s7MY6F7e52xscOM6oMSDFR7cj/tPxK8Oy2WkTx2zzR0zKslj0TZamL6QcdrgCchGr4wQFgsVFtMXWlxkzL3ueZgDAuJwgZK473ekLtarZHHB44anziGVR1cGY8pUKwaFs9F3CUm3XQRN2mMDqkNBUl+lHWWtRtYypVA5w1mmeLUA5bjnRywgNyQk03hwDmmQQCCMiDiCEpACxbd3pT5VpVzRiyyt4JuzhDDqxHTdYeWmtV3T6YbY7HWtbv9NhLQfrPPFpt6Xlo6VguhGuu3nmXOJc9xzc5xlzjykklAe+1ybrOwTbXpNV+CA8LSoXhVAve0ivDrDFSBlKC4uhAdATtcy9x5THMMB6ITcpQUA60JbQuBLCkHQEoBcCUoAQiEIQCSEkhLKSUA2QmyE8U2VICeJGx0j9oY/9WpspRKSVAElcASkBSCTZW4q0aNyVasgxVjsJwUA9drlGt7bzCORKD0io7BAaJvTaX4awCg48eyu4EzmWAA0TzXCGztYVdVh291pX5LpVtNxinam8E7ZwjZdRJ6bzeeoFuKAyjfu0vJs+jmHM8NV5my2k0jYXXz+wFTLKYAC8zdXp419IWi0nEOqFrOSnT4jANmDZ5yVEbp2PqoC0NqLlR6rg3Q/7V07oB4KAm20rxqwTtXSwd9VRH2kHUpALoTfChHChALdq5/7/AMk4EwagShWCAfCWFHFYfASuHHwEBIC6Co4tA+Au/KB8BASJRKj/ACgfAR8oHwEA+Skkpn5QPgLnDj4CAdKQUg1x8BJNYfAQHamXxqQUh1QER/JHChAKXWpvhQgVggPRsq9yyuwVYp24DUplPTgH1UBZ+ESH1FXvnCPBSTp//aoBL0teEPYYewhzHeC5pDmkcxAK+h9zOl22ux0bU3DhGAkeC/J7ehwcOhfM1fTF4RdWlbzW6dtKhXs1WbrajX04ExwgIc3kEsvc7igLfum3uNH2t5ruDqTzi40eDZeJzc6WGTyqv/4S2Dxto66PulxCAUN6mweMr9dH3SWN66weFV/4fdoQgEf4bWGM6n/F7tdO91YR4fVS92hCWAl+9/YQYh2rVS2f/GlDe/sMAw7I6qXu0ISwBu4Gw48U4DwaXsIG4OxeCezS9hCEsB5m9/YYm6ezS92k1NwVhH1T2aXu0ISwEO3DWIGLv8NL2Fz5j2Lwf4aXsIQoAfMexeD/AA0vYS2bhbEfqns0vdoQgA7hLFhxT2aXu0O3B2LwT2aXu0ISwFjcBYY709ml7tJduBsPgns0vdoQpsBv5h2LwT2aXsLjtwVimIPZpe7QhLAU7e9sN6Idlso+7TTt7+xTEOz2UvdoQlgLdvb2HbU6qPu0v/C6wETeq/8AD7pCEsBJ3qbAf9Sv10fdJH+E1g8baOuj7pCEAuhvRaPLhNW09qj7pXzc/ues1ipcFZ6YAPfOht95GReQBJQhAf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhIQEBIVFRUQFxYWFhcVFRYVFRcVFhUWFhgVFhgYHSgjGBolGxUWITEhJSkrLi4uFx8zOjMsNyguLisBCgoKDg0OGxAQGy0lHiUtLy01LSstLS0tKy0tLS0tLS03Ny0tLSsrKy0tLS4tLS0tLSstLS0tKy0tLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xABPEAABAwICAwoKBgcGBQUAAAABAAIDBBESITFBUQUGEyJUYXGBktEHFRcyNHSRk7PSFFKhscHTIzVCU2JjchZDc6Ky4SQzgvDxg5TC4uP/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEAQUG/8QALxEAAgEDAgMGBgIDAAAAAAAAAAECAxEhEjEEQVETYXGhsfAFIjKBkcEU0RVS4f/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCommawFz3BrRpLiAB1lVrQ/DEf+EhGo1DbjbaKY59YHsQG3+N6f9/F7xnenjan/fxe8Z3r5qG6EJ1f5V6KqI6B/lVqo1HtFlfaw6n0p43p+UQ+8Z3p43puUQ+8Z3r51p4A/wA1o6xZSUO9uV+hrOs/7I6FRbxZ1VIPZnePHFNyiH3jO9eeOKblEPvGd64eN5051Re3/wCqsVe9eSMFz+CAHOflXOyn0O6kd38cU3KIfes708cU3KIfes7186PowMPmnHosOe2saNJ6GuOpZtBvblmDTG1pDiACQQM9fm6M07Ga5HNcXzO/eOablEPvWd6eOablEPvWd6+cdzqLh5OCY1oIuXOdYMaBpJOm17DIXJICk4t6cr5GxM4Jz3Ma8hpcQ1rvMxHBa7s7AXOROjNQqxdKOqeF3koSU3aOTvXjqm5RD71nenjql5TD71nevmXdZkdPK+BzmSOjNnGIlzMWtuI2uQcjbK4tqWMyqjOhp9g70inLY45Jbn1H47peUw+9Z3rzx5S8pg96zvXzNHEHaGfYFWKQkgBtydAAuVd/Gq/6sr7en1Ppbx7Scqg97H3rzx9Scqg99H3rgUe9GctDiI231OJxDpsCo7dagFN/zHR3Ohrblx6raFHsai5E9cep9HePqTlUHvo+9ef2go+VQe+j718umuj+qfYO9efTo/qn2DvVdmS1I+o/7QUfK6f30fevP7RUfK6f30fzL5bNYz6h9gT6UzThNugJYJ3PqP8AtHRcrp/fR/Mg3x0XK6f30fzL5ZNUz6v2Besma42w6eYJYakfXAK9UJvIJO51CSbk00GZ/wAJqm1w6EREAREQBERAEREAREQBERAFoXhj9Eh/xx8GZb6tC8MfokPrA+DMiBwCEKSpnWHT3qPhapOggJcA2+f3a19DSTseLLLNo3IjBAzW20LLBa1uXuaDa5f1Pe37ip+Pc4AWDpB/60vzKFVpmmkmlsSckwaLnUtF3wbt8LKImeaDxiM9egbTqtrJCzN9B4KM2llucgDNKf8A5LSaOmc+QN4znPIyuc76B7c+raQoxWlahUnqeg3v+zmNjXk+cAXm92hhHmt1HFq/gYHZcMpSl3QDC1oyDefUNealqncPDTNAnmxWBNpCQXWto6gOpRu8/e8ZXmZ73PYDZtzcEg59OYVNOS0NyZc09SSRVvZ3lMdTu4VriXgu4rixxdY2sdQAJAByzNxmQtY3576BSsNDRnDM5rRUTAgubZgYYmubpks0Nc4ZNAwjPMdgrKhsTCBoA1X/AAzXD9+G6MVTOHMgjbDTuDXODQC8v0AuGkdBt06VknR/kta9k7rpcs1KhH5f+mk09OXZAZLYtztx9BcOpbJSRQWu2Jjf6RkshsOLQLBelRoxpLvMU26ngR0VJ+y0Kc3Op44QXmxdbNx1dGwKL3WqYYIzwp84EBoPGd0Wz61pG627ck/F82MaGA7PrHWVGtXjFWZKnTzhG1b4d+4F46WxdrkPmj+kazz6OlaLNK57i95LnO0km5KoVyGFzsmi9tOoDpJyC8ypVct9jZTpuTtFXZbVbIydGjWTkB1q4Qxv8Z5rhg/F32K3JI52nVoGgDoA0Km99jQ6cIfW7vov29vxf7Alo0ZnadHUNfX7FQXE6V7hRregdK7YrcnLCx3e/wBniuU3nDr+4qkkDRmq6Y8Ydf3JcjazPqbeR+rqH1aD4TVNqE3kfq6g9Wg+E1TagWBERAEREAREQBERAEREAREQBaH4YfRILi4+kNvqy4GZb4tD8MfocPrA+DMuoM41LUUTjeOmnZzCqY4f5qe/2qU3AijDi57H4TawEjQem/B9C1OnkOpbHuPUv5jna4GoZbeZfQxS02R46+q7OlbmfRrD9HJ7xvyKTElPa+GTtN7lqNNJKBlbsn5lFb4N2ahgDGgcbIWab/6lndG738zX2qitjbJaSiqXm7JTgv8A3jA24BNvN5j0AE6AVis3EihjfVwNeHYXuYJg03GdiA0Ai9gOgDTpWJvZ3Jnc2B76jDGHkPY1gsbgON3HjXNgMiLCxHnXUzuu2pmqPo7DGWkZ4WFuFu3ziNWSqy52vhErfLe2WU7gTVNX+jkDGsFsRZivb6ue37ulbbVzx0sRPFa1unn1WFtJOzWVaYIqKEN16NrnOOzaSoekfHNKZayaJvBuOCIyssy2WJ2ebz9mY23pm1N32j6lsU4q27Mmio5arFJMXxskaWtjBscB0l+ok7Dcas876RXb05DDLDgbHUVdQ2VjMV7RNLALm5za0EuzOZOZ0nfa7fLCCIoJYnOOsyMDGj6zjfRzBYdTuvSUrTUS1ML3DznYg99rHixMaSdNvxXFNp38hKCeCDod6r4mASAZar7Nq1nfRvrigvFTWkkGRdpjZzZeceYf7KL35eECesxRQ4oYDlYf8x4/jI0D+EdZK0vDzLs+JkQVNLCLlTUvkcXyOLnO0k/dzDmVMMLnkNY0uJ1AXKy20bWZzOz1RxkF3/U7zWD2nmVx0hcCxto2H9hp0/1uOb+vJYZVeh6NHgZydmvst/6X3z3FngI2eecbvqMPFH9Txp6G36VTK978jYNGhrRZo6tZ5yr0UAvhaC92xujrccgpJm5BABmcGg/stuL9el3UAOdUyqxjls9Ol8NqVPkjjql+3z8M+BCNizsLk7G5n/ZZjNzXWxPIY37T1911IukZGLRtDRtIFzz277rAqKkuNySTtOlQ7Sc9sG7/ABfDcKr13d9F7u/JdxbmjjAIaCec9OoLAIWS5xKx3DNXwweFx84zmnGNltjBThV2mHGHX9yoVyn84df3KZhsfUu8n9XUPq0HwmqaULvK/V9D6tB8JqmlEkEREAREQBERAEREAREQBERAFonhh9Eg9Yb8KZb2tD8MfocPrDfgzIDkVdV1BN5JqSS9rmMUhJ7LAVO71g4W/SUrf6voxOenMglc6a7nWRFWFv8Ae2617NOpFxtjyPNaknc7a+uLBczUlhz0o+9a7Wbr1EkgbFLQm54vGoHnnNrE+xc0qt0SRYz35rqjc+F8kjI4wXPkIa0DTcquUoqVlbyLG5NXZ3bdFjjFTwxefi/u7RYiW6QGAADWbDIKVibHQRF8ji+SQ5k8Z5cdDG6zsA/8rEo2ihhjfOcdRwbI2tbxjk2wawaySCSdfMBlXTx8Has3QIEhNo474gy+hjR+1Iddszqy0VvKty9S9defoZFDRvcfpdXkf2GXyjb+LtpXA902tdPUOxAAzSkadBkcb5NOr712rd2vbhM+6DxFC3zKe/Gfs4W2n/DHXrC4jJLwk7nNu0SSOcMI4wa5xIAA12NrKuTZdSpSqbLBSWR/X+/8tWXQtvlIPY6/+lXJmXkLcTiMWEFzbOte2bdvMvKqINcWtxWGjEMLtGsalknVilc9BcFHZyf49/gtiEfvW9l/cnBD94Oy7uV6qpw12Fpcf6m4STcjIbNCrraQMDCC44hxsTCyzs+KL6Vnda+C6lwtGyab9H6GPwQ/eDsu7l5wQ/eDsuWVLCI2wyslJc8EkYHNwEW0OOTtOpV1bC6Jkrnuc5xzaWEBozAdjtY3sMhtVmnrYi09oasu3d6X++Cjc2bA7Fe1gc9n/d1cqK8km2vWcyViQC5tzH7wrwjCQ4ZVHqPeocTOlQUL270TFHvQ3QnYJWUzy14uC4sZcbQHuBtzq7TUzKCRzN0aHhZCAWtdNha1p12juHXIOk9ShCVbe4rWqcY7HkV6l27u/wCb+pkbrTxSSOfDAIWHRGHueAdoLs+pRL9JWS8rGfp6lVPc82tK54VVT+cOv7lQVXB5wUTMz6n3l/q+h9Wg+E1TKht5n6vofVoPhNUyonQiIgCIiAIiIAiIgCIiAIiIAtD8MfocPrDfgzLfFofhi9Dh9Yb8GZAfOgWVT7ozxi0c8rBsZK9g9jSFihVBpte2jT1qwpM/x9Wcsqv/AHE3zLefB7NDTYZ52OkrKgH6NGAXvcw/3rvq4jexccw0nRmecwtJc0NFzcWBsQTcWBByIvtW8bi76GUTpHZVFTOby1LcLuDyH6KDKz9Hn5MGVg4CxtpSszujUr8zpUQdE8ySgT1z23EYdaKBhJzc45MZlm8i7rWA0Baxu7vxbE88E8VNUMjLohh1YIm+0E+cc8xoGsVO7NXWgxwtMURN34XEl7ja7ppTYvedmzIC2Sy6TcGGEYpXC5z42GwsNTTl1v8AYFTX4+FN2WX79/2ezwHwhztOthdOZEyxVFU8yzOL8WQc69tOYY0aeho6VF0cEYnwz3MTHkPwlrXloJHFxG17jat9mmY1jHBwYXloP7UmAPwklx0DTkNGorQHSM4ZziLs4RxsS7NuImxIzzC89cTOq8nr8XTVOCjTjZZKq6OLhnCG/BF/EDnsLsFxk4tJANtqs1TW4rMGEG1gXtda4F7uGVr36ke5nCEgAMLrgDEQG3vbMXtq0Kqvex0rnMwsY43AGIhg2Zi59mtTSwYY05a03fYVjGBwEWggaXsdxtebTYDNU1TGjBgAHEAfx2uvJniIAJsNCVXBlw4OzQciLvdbnu5oPVnoXlQGcXCW5AA2DuMbnjG4HN9nOtfYbsR03UrNMokjaGtI0m9+M07LCwzHSei2Vzflii4Fjm34W5x8ZmHCcVrAOxX829xtXlU6PAxrAA5l8ThiJeTrzaMI5ulVzVERp44xEBK17i6XE4ue03s0ttYAcXXq6V3RYi53Sbus9fHyLFN53UfvCvlY9L53U78FectVFWgVV63L3yKXFW3FeuKo0pIwync8JVh2nqV9zDrCsO09SonuUt4KSq4dKtquHSolZ9UbzfQKH1aD4TVMqH3negUPq0HwmqYUCQREQBERAEREAREQBERAEREAWh+GL0OH1hvwplvi0Pwx+hw+sM+FMgPnmGUg4gG9bWuHsIsrtTVEjCCLODS4NjbGMQvkcPnWvp51YiaSDYEhou62oXAudgu4DrCkGwRxhkkjiXYo3hrSMozck6DxrgZaue+XJ6U72ySpU51E9Oy37jGpqGSV3BxsL3awBo/qJyHWts3K3rti41U9pItdjdA0njHInIHZo1qJot1nxVE1nZTucXONruJcXBxO04jzZr2evvrvoHsACzVZVZYWEfQ/C+A4dRdapPKbVvA2Wo3WYxuCHIgDCQMhYnEOjzTxQBmo6o3TdJZmVosgLazmSecqDdI6xdY2F8+kgD/SfYs+IOZwrsJs9wwusbHCHg2OuxU+G+HOpNJnuU+NoQa0rnz8Ll2z3SOaciLE31DE38SoSniMkjWNaXue6zWg2JLjkAdS2iSF/Cyy8G6zyWh1jhJ4RgABta9wQtahYBM1r2uIEga5rb4yMVi1v8WrpXoS4GEErHk8Vxzq46XLktE5pc10ZDmlzCDKzJ7TY5cx6lhELNmDQ54EcuT3ixcQRxjk7i5OGQPOCsaVp04XAfxEn7bBdp8OrXMfaPZlpZU250rAwuZYSsEjLuZxmEkX07RoOaxVK1gjIgsKm4hZfHe17nOK9/0VtGq4K1ySirGGfEWnZEbJGW+cPYQftBSQtPmgjpN/wVbmX81j77Sb36sPTrVkhYFsV1KruV044wtrDvwV+ohew4Xtc06bOBBttzViB5DgQbEXIOw6lIy7qvkzmHCuItieSXDrVtP6SmpK7RHEr2N9iqXKglGyq5emkxLFcqyVbPeqZ5YbuUKuLSqF7HpUWVn1ZvN9AofVoPhNUwofed6BQ+rQfCYphQLAiIgCIiAIiIAiIgCIiAIiIAtD8MnocXrDPhTLfFofhk9Ci9YZ8KZAcI3PlL21bnm5NM0XPNU0gH2BR7pTYC5yVyne5rZGhp/SsDDkchwkcl/bGB1q1gOw+xTsVqTSa6hztHMArrpPxVnCdi9suWJxqSV87mS2oNiL5EEH2h33hSsVW9wcwm7Y3nCNQL8RdbpIUEsiOrILjh88g6dFr9628NK0kaY8RJLf3Zr9m0y7oyXbHi4kL3FovoJla69unNa7wz3T4mXdI6QuFhiJeXXuBrzXnjM43SYRxtV+e+zmWNFPhOIXDhoIcRZam1JYIuu/VmZU1MznyPfiL3OcXnAL4r8a4AsM1jPqL6T9gXtK8veGvkwh5sXuc4NbfS51r5aPYn0dgOcrLcIWXGI8QG3C2AJwa9F+ZQi0lY7Lio6k+Rb4QLJn3TkfgD3kiJoYy7W5MGrIZ9JuV4aSPikVEVnSFmfCcVo/vnDBcMOm1sXMqDSNwtdw0ebywtGMuDRf9IRhthNss75jIKM2jNKp8zKPpJ2/YAqS/Xnmrk1I1sTZRPG4ueWcGCeEDRe0hBAs026cx1YhcdqwEpSuzJjOY6/uVRcseOS1ubuVXDcysg8WOTd1dFwuVDiqeFXheushc9JVJ70Lk/DpzVTOplBXrCrxpx+8jOdsseYuRiF2gAC18yDYiwOdqJosJtiBy1EHqyUWc5n1XvQ9AovVoPhMUuojej6DRerQfCapdQLAiIgCIiAIiIAiIgCKC3219ZBG2SipxUG9nsvxg22TmjEL56hc5hc3q/C/VxO4OajbG/6sgkY72ON0B2VFxby0z8mi9ru9PLTPyaL2u70B2laF4ZvQovWGfCmWp+Wmbk0Xtd3qG31eEZ1fCIJYQxrXh4MbuNcNc23GuLWcdSA0jhJ75uI2+aqpJzrKuudAdIm7cfyK25kB/fj/AK4/xjQFh0ioMiyxHT7J+3H+EaFlPsm7bPkQGEXqnGs4x0+ybts+RecHT7Ju2z5EBgl68xqQMVPsm7bPkXnBU+ybts/LQEfjTEs/gqfZP24/y04Kn2T9uP8ALQEfiTEs/gafZP2o/wAtOBp/5/aj/LQEeXLy6keAp/5/aj/LXgp6f+f2o/y0BH3QOUhwFP8Az+1H+WnAU/8AP7Uf5aAwLpiWf9Hp9s/aj/LTgKfbP2o/y0BgXS6zuAp9s/aj/LXvAU+2ftR/loCPKXWfwFPtn7Uf5a8MFPtn9sfyID6m3o+g0Xq0HwmqWXD9zfC++CGKBtM0iFjIwS51yGNDQTYaclk+WuTkrO05AdnRcY8tknJWdpyeWyTkrO05AdnRcl3L8KVdVZUm5xmOi7MeAHY5/mt6yuq0xcWNMgAeWjEBmA62YB2XugLqIiALxeogKTdYldQMnaY5o4pGHS2SMPb7HLNRAaDur4JtzprlsfAOOuEvaB0Mc4s+xQvkOpuWT9mL5V1hEBybyHU/LJ+zH3KuLwJUzb/8VK6/1mMy6LLqyIDkrvAozVVi3PT/AP6qqPwKRZ46on+mEN+95XWEQHJfIbT8sm7EfcnkNp+WTdiPuXWUQHJvIdT8sm7EfcnkNp+WTdiPuXWUQHJvIdT8sn7MfcvPIdT8sn7MfcutIgOTeQ6n5ZP2Y+5PIdT8sn7MfcusogOTeQ6n5ZP2Y/lTyHU/LJ+zF8q6yiA5N5Dqflk/Zj+VPIdT8sn7MXyrrKIDk3kNp+WT9mL5U8htPyyfsxfKusogOTeQ2n5ZP2Y/lTyHU/LJuzH3LrKIDkvkOg5ZN2Y+5ejwHQcrmPMWst9gC6yiA467wH6bVrbar077/HVyn8CDM+ErL7MERZ7byuXXkQHJXeA+An0yUcwYz8U8hsHLZuwxdaRAcnh8B9OHAuq5nAaQGsbfmvY2W0bk+Dfc6nILKWN7hnimxzG+0CQkDqAW4IgLUbCAAA0AaABYDoCuBeoEAXqIgCIiAIiIAiIgCIiAIiIDxERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBAiID1ERAf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIWFhUXFRgYGBcXFxgbGhkbGBkdGB0XFRoZHSggGB0lGxoXIjEhJSkrLi4uGCAzODMtNygtLisBCgoKDg0OGhAQGy0lICYuMjAtLS0tKystLS0tKy0vKy4vLS0xLS0rMC8tKy0vLy0tLTAtLS0vLS0tLy0tLS0tLf/AABEIAOgA2QMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAwQFBwECBgj/xABREAACAQIDBAYDCwkGBAQHAAABAhEAAwQSIQUxQVETImFxgZEGMqEHFCNCUlOxwdHS8BUXQ2JylKLT4QgzgpLC8SQ0k7IWJXPDRFRjZIOj4v/EABsBAQACAwEBAAAAAAAAAAAAAAABBQIDBAYH/8QAMhEAAgECBAMHAwQCAwAAAAAAAAECAxEEEiExBUFRE2FxgaGx8JHR4QYiMsEUFUJisv/aAAwDAQACEQMRAD8AtnbrHPZAS5cBLyltwhMLoTLqDB7eNIbIx1w9DaAzSt1nZ2Ysgt3AvRGdXYZsuYnXITJnWVxmC6Qq2dkZZgrl+MIIOZSK1wuzUtkMsyFcamZzsHYnmSwnxoCL2LtK5csWjaQaYazcbpLjMSbiZgmcyxMDV2neNDrCeF2hedmuoi64XD3SrMYlulbIIBj9qNNNDwXvbJ6NUt2EeFsrZkXQsqgIVbpjNAk9ZetqafYDZaW0Cgk/A27RP6tsECBw9Y0A02fjbtzFOMy9D73sXFWOsOkN7WeZyie4dtPsbimDpaQAu4ZutMBUyhjpvMugjTfv0pC7sgAHo3ZGNlLMg/FTNlO6Qyh3ggjU6zAp1jMGLmUyyss5XUgMJ3jUEEHTQgjQHeBQEJe2g1rE3iwljh8GoUZsuZ7uJBIEEgQJOhMLxp2m12KmcqsHCglLkOCuabaRmJ3ggTEEzTh9j2yWZi5ZktIWzQfgWd0YQBDBnY+VbNsycpN24XUmHlM0MACui5YMDhvFANsBtZ7rWgttQGtC45JMrrlKqIBOvExu3cKdbRxbq1pLaqTcZhLEgLCls0DfuiO2kjsdVQraZkPR9GGzElVLSSDvzamDzit9p4Frj2WDFejZmJUwRKFRAIIbfuIIoBra2u7XPe4VReDOG1YoFRbbZxpJJF+z1dILNqcuoNtkZw9sBlV9FMy6FeqpIHrC5bI7yOFOvyQmhDOHDFulBGclgA2aRDAgKMpEDKsAZRGTsm3FsEE5LnSAk6l9dXPHUzG7QchQEfd9Isqq2QEhFFwAk5Lr3lw6JopJXpOlBYCR0e4zWfy1dlUFsFmuhAxFxEhrbvm6yzIyEFRO8aidHx2Pa+F0Pwrq7dY6MuXKU+RDLn0+MWO8mlF2eOoWuO5R86lsu/IUjqqBEMaAQxu2FRTCsWzqgDJcUSxiQSvWAAJ0nd21GYrF3bzWreVY6dlbMtwJcAsNcBhoMTvBnVRU/jMKtxcrTvBBBggqZBB5z57jINJJgBKFndyjllLZZkqUg5QBEMeFAQGzcSbIF66trrHEZrig5wtpnbLJOqgJAXhAqVxV66EDXFUA3LICo7BlLXUWGYesNdY0Oo1BpyuzLYCiCQpuEA6g9JmzA8x1jWlvZQC5DcuMoKFVZgcvRsHUAxmOqjViT20A0w+22d1hJRrjJotzMMpYdITlywSu6dAZnhRs/a124lh2RFGIt5kAZiVYp0gD6CQVB3RBAGszT+xs8I2ZXcLLN0cjJLSSdRmGpJgGJ4UYfZqItlRMWAAmvAIbfW59U0Ay2Vj7gwKX70O3Qi4cuhbqAxrpmJ7hrTHauIurcJuBYGDxLfBu41DWdJgEEcHGup0HGbsbNRbJsGWt5SmVoPUIy5NAJEaa69tIPsVGnO9xybb2pZhIR8sgQBr1RqdTGpNAaXdqMr3lIUdGjMqtOZwqhs6ncVk5TExx3xTPbGPuiw/SKqi7Yu5MrGVYWmcK2mvVDHMIgiIMzUjtDZucOczM2RwikjKpZCsiBO7mTvNJ29iKUyO7uOiNsBmnKGXK2UxJMaZmk9upkDXEbUKOq9Urmto0Byym5CgsQMq6svVJEgzPAqbP2obnRDIAxVzdAJIRrbdGyAxr8JmAOkhGNbXNjoWJzOAbiXCoaFLoVhjpJ9RdJjjE60bKwRVrt1lCvecMVBnKFAVVndOhYxpmdt+8gSNFFFAFFFFAFMNpXnBUJmnUwFkNG5C2Uhcx0nSBPZT+igIa9isRlUhRqVByq0gZmJbrAn1VAjKTLSOFZt4y+AAycBmY22MaDrQsZ8xnRYy8amKKAjMHdvNbfOpVwzFRAOmckCYgiOrzgTxFbNcudfV4DjULqF4hRlGbyOh0JNSNRm0unDTbkr8FKiNfhJcif1RBHI9lAN3xN4LHXnpRB6M62oG+EMGeET2DgtauXiDBb43rIBBzgLlEDMMszv3DWtUxGJ0JQRuOmsTc62sEnKtsxA9Y+CYa/wDCGHzEwpgkBcgghZyyW3jeJPAUAp7/AL+cqbWgkE5G1hwsrrBDKSRrplM6QSpfxN0m4FUgKbeVspJIzw+nxhlE6cDzpph8biCcgCkrkDE8Jz7ysyerbnlmPg4xV2/0nVGgz8DlAjqnQyxngAY+kDV8bfBllASD1sjaQEIYrOY5iWAUERxmKzhb989HmHVa4xbqGQnXgTP7EGN3nWq4i84nIYBeVIAiAQo4htdTE6gRSuFxd9kYm2M6heqD6x0ZlBnQgad5oBM47ESxFmQGgDKQWBKDeTCxmaTqDl0pQYi7l46uYPRtugQAkysmdToI7aRvtiSh0ytBUZRoSEuDNvMAuEYagwyg6zTrENehQBrmIMCDAbRp3Dq7x2+FAN2x2IGnRD1wBo56uaCSYicsMCNN4MGJUv3L0D1g2RSAq9UvJzBpnKAI3kbzvO7ODuYjqlwBukR25TrPLreyk0vYgGMsrnaSQZAzmFAE5hkgzoJ48AAjcxd8hY6QdSxPwZmelAu6G3vyTx7hxpwz3gFaTA6SZQkkZgEZlQjXLPVjjwIpLp8Qw9WPVIkEN/eLIIiNFkESJG4VLYdiVUsIMCe/8d3hQEfaxl9iq9EFPx5DQNCQA27XQSJid3CtMTir/WATi4kIxA0lSBvbXSdBvO4SZeigIYYvEGAUC9cCQjkwGWVO4aqSc4kaGpmiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCiiigCuN90X0wubPFkW7aM1wvq5OUBMvLeSWHlXZVT39of+7w/7F/6bdAIfnexfzOG/j+9R+d7F/M4bzf71ULmNGY86Avv872L+Zw38f3qx+d7F/M4b+P71UVbsXGBYKxUbyASB3nhSUmhBfX53sX8zhv4/vUfndxfzOG/j+9VDCe2p/DYBhaVehfpWbUxJCGIaPijX6K20aTqNroYVKiha5bX53sX8zhv4/vVlfddxZ/RYYeL/erl7+wxI6xyCOrA8NeVRm2sOFGaIgwftq3/ANLLK5Z9u78lfDicZtJL1/B3/wCdnFfIwnm/3qx+dnFfIwnm/wB6qee3Dq68dCOdWV6D7Ny2ulYa3Dpp8RZjzM+yqTiOXBUHVm762S6+fLS5Z4a9eooLpdvoSz+65ih+jwp7i/3q0/O/ivmcN5v96s4lMpXm7HyE/Wah8MoLajixrhw2NhWg5bHdPBuLtclvzwYv5nDeb/erH54cV8zhvN/vVzfpDa+GtWRp0hUCOGZ8pP069lWYGDDcIHZWPEeIU8HCEv5OV2lts7GuhhZVZSV7WOX/ADwYr5nDeb/eo/PBi/mcN/H96pr3oC24b+X44D21Ebcw4Z7aAaAFz47vZVbDj8ZO2T1/B1Phtv8Al6fk0/PDi/mcN/H96j88OL+Zw38f3qfYPDi2o0Gm/vP49lcljGDXHP6xPtrdS4z2jaUNu/8ABjLh+Vfy9Pydr6Ke6ffxOLs2LlmzkuMVJQtmU5SQdSQdREab+yKtSvPfoeP/ADTDf+qv/bcr0JVvSqdpBS6nDUhkk4hRRRWwwCiiigCiiigCqe/tD/3eH/YvfTbq4ap3+0R/d4f9m99NugPP1TPo9sx2uW7jW5tBxmLg5SAdQPlcd0676h1iRO7jVnegPQ3LTW7ZutkMkOF0zcFjTeCd9dmCpQqVUpvQ48dXdGi5JHRbKx+FByWgtsngEFuY0HqgAmKS9IfR7DYgHpECv8tdG8TGvjNKYz0azCVH4+im+GxD2vg74ldwY7+4jeR216adChUVoa9zPJpSjJVKUmn6/kW2Tsezh7YW0kEb3MZyTxLAagwNN2gpQYddeqFYAjQbpIJjsJANa9Ibfah8f8p4jmN430te3Bxr2j6e2op04wSUVoY1HUzXk3rzE7IzA/KXeOfdUTtrCSp03jXtH9PxuqVs3IcHcDp3Hkew8K3xtqR7fx9lbO1yTSez+WLPDYNzo9rT/kt186FTYXBvcu27C+u11UHYScvsq97WGVYRPVUBV7h+Jrh/RLYo/KLXo6tu0zjsc9QeEE+yrAnKmbjw8fwK+Wfq6u1i1hltFer29LfU9rwlJ0+05v4/UhNqt8OoG5APomo3B4eRPCY/1VJFJLvzBj/EYFPcPgctgSNSST4/0qiVbs4Zb9xbZbs5fBYY3to3LxHUsgWk7Xy6x+zmbzHKrDwViE1pjs7AKgzR/udT5k1OLb0jwrnxuJqYucYwTeVKK8F93r5mrKqUWlu3dkbehdeP2kD6xUd0E3XfgqhR37/srGLxubEC2PnAv+XU+36Klmtgaeffv+yuZqVLR7s3KWxz+3z0dpeZbXt0muIuP1j2muw9OrkIg/WNcSGl4q54fG9LN4mqrK7Jv0VtxtLCHndX/tar+qivR5f/ADDBf+t/par1r0+Ad6EX4+5T4pWqv5yCiiiuw5wooooAooooAqnf7RH93h/2b3026uKqd/tEn4PD/s3vpt0BSOzdjtcPWdLa83Ovgo1Ps76sr0d2phMJZSyLueJJbLEkmSYHlqToKr3ZWAt3IzYu3bJ+KVb2kwJ8a67AehCsJ99T+yv/APdXuBpQUc8Y378y9lt5lVjclRqFSTt0SfvY67/x3hV9UMe5dfMt9VH/AI5wlzq3EMH5Sg+ca1DJ6DEDTFEd6H7aTveiF4fpUfzrsdOG+z8/wbaMaD0T+edzo7dnDXVJw7iDvQElf8vrL2ZdRUc1i5a1ghfZv4HcRIP1gHU86/oxibZzoYI3FTr/AA7qsfYjlsJZ6QlnKdbNGjyQynskVU4zjLwUczWfXrrbxLGpwWFaPS/dzOMu4iCdNOIHD9Zfs/AkcNiZEEzyI4/YRUntP0WRlDWWKvJkNqpHIcRrA5R3VyOZrTFSpBmCh0IYcOwxqDx7qtMDxPB8TpPsJXa3T0a+dV7ldhsJVwVXLUWj5rbQ6v0ctx75PNbIB8Xnu4VL7SMZV5KPP8AVAeiGLDm6kzKqw7QGg9xGYAipjaL9c9/1CvmH6mjL/bVL/wDX/wARRf4eagsq+XFBZhE7TmPhu+2pDDgNb7Mx8gAKb4heqo5IPYAf9XsrOzMUBaE/Kb6dKrOH8Plj6nZxdnv6lip/t7wx2JAu2rXNgW7p/wBz4U72ltVbdt7hPqg+f+/0VxI2vnxbPOi5j7Mo+kVF+ke2s2W2DvOY9w3e2a99wf8AT/8Ai0pN6tvc1SqIn/Q1TcvNdbcg/ifX6J8xXWlvpP49lQ3orZFrDKp9Zh0j976geCxUhnIUE8sx+n668Xx/h86OIzpftNsNrs5H0+fRBwifbXMbEtl+vyqV9Odr2iVDXOjgGBlDM08YzLA036009E7tt8tsOIO5vlHkRwPnXdTwGIo4LNKNravVXS8N/tzOWGKo1qtoSv7fUnNgD/jsEf8A7gjyQ1eVVDbw4THbOUfPt/2Greqz4XNTwsWu/wB2ceNVqzXh7BRRRVgcoUUUUAUUUUAVTn9or+7w/wCze+m3Vx1U3u64cXGwaNubpgf/ANdZQg5yUVu3b6kN2VyovRb0fS9az3QRLHKQdSBoZEQNQfb49NhvR5E/u8Tctn9ZZHmhFZ2WlrDjKICb4zTv49aSO4RU7h8Vhbn6VQe0x9E16ylho0KcYta82viK9Z5zb5EU+zsb+jxiP/jg+TL9dM7y7TTeHPaMpH8BNTeO2Fm1tXo5cfrn2VB38FjbZ0ee4/VWqskv4yZaUYPmnbu1MWNs4xfXVj3iPY2+ux9Dto++EuBhlKMukEbxv13TG7srhLu3cVaPWbNzVwD/AFHgamfR3bz3HJsIouhZa0WAS4B8knUET4Txry/FqMq1GUXK3ja3k+XmXFCUYxyxS9n5nfLcggcvxpUV6ZbPW7aa6F+ERZMbyoMmOcCSP61MYhAQCIkqDA4SJjvGo8KMI4kSYrwGCxVTBYmNaD1i9e9c14M2VacasLMrb0Wxht4tDIhuq/Jgw6rr/iCz412eLcZ2B5xw0kb+yIHtqUueimFeH6FQwJgoSsaz8UgVze07xD3OzXy/oTV5xXiVDiOJjiKUWnls1K3XR6Pv1PP4lvCtOT0enmtTon1tzzUcRxB498COyue25jMiQrKmZ8oLEBVk+s/yQN5nt7q6xBKLHyV+g1W3p+/wRHNwfCJ+oV2/o2Mq2PcbWVnd/PE6ata1O8WbYZ7DEuzqMx6MlXs6BSoUko+Ulk6xhW6z7wFiltiHC3rcMbfwks4zW2a38HagKjA3T1hciG6pY5swrjLrdHhrYGhMt57vYy+VPPRZSlp7p3sQi/X7T/DX0iXD3kUc76/b53HJGtqrstPDXkO9l6zAMBcBATMwLI06sFCHKJ3+rwVzj7ga2MpmcgIEDUwCOwZiNe/XeByOzsSJid1T2Fvggg6rxH47aqMfwrOtXe2qv1WqLTIqsHHM9U19VYqna+GwbXnOJvXkv5x0gIOhFxQ6gdH1YTPl1YGBOXcXmwrOGRicLcuOARq07+plgFFhs2bQFtAu7j0/pEcM/wDzWHW6+5XVstwqNF6QxDd++mno7ssPcEAJbUyFHDvIAk+H0CqFdupOMqbv5WdxhcNGlJOT0Wy69DrBczY7Z54e+GE8yEMx2cPOrcqoumBx+z1UQqXyB/091W7WjCYV4akqT5fc58XLNWb+bBRRRXScwUUUUAUUUUAVU3u7XijYNgJI6bT/AKdWzVUe7jbzPglJiTe1/wCnW2hftYW6r3MZbMrvDekVs6XLf8INLPc2c/rW4P6oZf8At0qLxmw13i8o7/6VHNYZeKt3ZvrFenqyq7VIpnIlHkzoCmGXWxibls8mLZforQ+kOIt6MyOvA7wfFT9NQcHlFYNa5NNWt88DdCrOGzJ+56QC4IuWFYcSD9UQKnPQ+3gWuB0QpeAaAWaNRG4kiNar1pXUVLbA2uLVwXMobQqy7iQSPV5NIH4Mil4lg/8AJoyhBtTs7K9r9x30MdJSXaWa6219C5RYMrJI0jxB4+zypW2mVpbzG7+hphszaCXbS3EbMrDf3cGHAjlTt203yPMj7a+V1YOEnCS1ReLVXWzH7XeqQo7dPriuCxjnOSRBDsCeYPH27v1a6tXcg5HWP2T9RrjMTh7yYlw5Uo6mIDesNRv7Mw8RXTgLObTfIquMYZzwsmt4/u+m/pc6/ZGKlEB+THkCKr/06bNcxA+KoAH+GQfbNdLsu6Qjc0YMPHWPMHzrlNvdcMeLBte8k/XXvP0S408ZUhzauv7POUKznGxzO2zC215WwPoH+muitWujtWk5CT3xJ9pNQGNXO1kcGCjzYfbU7jr3wijmrH2ivpcleS8PudBvgLxRSx4kn6h7ZqXtbSypqdwk+GtQOOeFRebKPrprt2+VtmPjGPDeY9la6tNSWZnRRxEqegi20TdfOdSxmOWun2V0mB2iLbrZB6xEt3mq9w+JKtm5GfIU72FjS+IzkkkBmPlH11SXoxlHnKR1rF3LT2XiA2PwI5YgnzQ1dleevQzE58fg+YvgH/K9ehaouIxUcRJR7vZGqc87uFFFFcJiFFFFAFFFFAFVN7upIbBRzvf+3Vs1Uvu7vlbBHkb3/t1toSUasW9k17kS2ZVd9nbnTViRwpxdxpO7SmzGd59lX1bG4dv9s7s51CXQBf762DKeP1UkUH4/3rGTtrQsbBbsnIxZk5+dIHCknqasdwA1PcBv8KUViONaLmVgyPlIIIPIjcRWNXFUZLTcmMXcsX3N7dwI6vZuIzNJLiASBAKjeD4a8zw6O+zKMpOszNcrhfTy0ApezcLwM2UrGaNcsndM1vifT6y4/ubnmv2186x2GxmJxEqsqe/evueiw9ehSio5tDr7TwJG/nxPfUX6Qh2TMgBZdR2xwqEt+ntncbNzwKfbQ/p3hzp0F3zT7a4qfDcXCal2e3h9zfLF4ZqzfoPNkXR0n6txDHj1tRzBB7pioLbS5S6n4rn26/VSK+ktoPmW24AYMBInfLDuO/xNN9s7dt3mcqjLmy743gQd3PWvVcGVXC42nWasr2fg9H9F7HjI4WVGrKMdY30fcQ+KMC0fkkD/ACsop7tG5F+zy6y/j2VG4ghky9pM97ZvtrfF3s5U7irZq+ky4rhN1UX0f2OjJIfbTufCWR/9Qnyio/0kxYIAB9VmHlv9tL3sSGe20GEYkjnMfZUVi8GXJ60SSd3MzWjF8Ww3YSVOV3bTclQd9SG6Q5Y5/RUx6LDrP2qfpFNzsg/LHkae7Pw5tsDMiIivK4WqoVYzk9jc1odX7njztLDcunQey5XpavNHoAw/KWFjjfU+St9tel6z4hUhUxEpQd1p7IRvbUKKKK4jIKKKKAKKKKAKpj3a8ct+/asICTYVi5GutzLp4BR51a3pBtVcNh7l5viroObHQDzqiL4zhrlxpe4xZjmTjruOtZJENnKDC6gQ0ncI391DYaJmRG+QO6nt+3k3bp13H+h31jIAMyyG3bwN44AaxvB76myMbjX3mZiGntEfTQuDkA9aDuMaedOUVW3jXgRlVd3HSI8qwWk9YE7zoBm14ydZpZC4396b/W036bqyMFrHWmJgDhzpy8r1TBERwbjOh4a8q2ywJWYJGhg6jXUcuUilkLjP3nu9bUwNBqeQE1k4KJnMI3yKc2UB1GniAOXHjrz4UKAxgjXshY5TpupZC4natMBlDMAdYgRqInXsp0MVfiekcgnfkUiYjfHKk7h1AbXUcidQOPdREDQabtYJ7e78a0shcajAbwMxjfAmOOsHlWVwEkAZiTuAAJPhNOLabyPbHA8Bx4c91CAE6g5uyAJPE/gUshcbHBRrLctw+2snAxM5hHMD7aXaDAYabuqADHf/AL0MOzTwpZC4gMDu9bXdpoe4zWEwU7sxjkKcDQdXiOIB1O/8d1YyrroZ8KWQuNxhJMDNPKNay+DjQ5gTwIp1aMcOPIfXW1+1Inq6agdUHxilkLi/o2/vbFWMQyuVt3Fc6Rpu+uvTNm6GUMplWAII4g6g151wFtGTXcRztjQ9kTuq0vcr2xntNhXaXs+qZ32zujuOniKholM7uiiisTIKKKKAKKKj9vbRGHsPc4xCjmx3fb3A0BX/ALpe0jevJh1BNu0ZcgjV43anWB7Sa43H32gxn3aAi19Q5xUtdkkkmSSSSeJOpJphikrYjAgHYR1sxP8AhHnC0ysxmOaYnhEx2aRUlirVMWt0BpiWl5BMSTJidN0wOXLSi43VgHdPAb+zq1nJRkoAsgxpxEHSfDdWRaPb5H7K1upBHd9Ov0EU4wdlC4zbtSdZ3CSYEE899AaNaYmSD/lP3d3ZWxtsQBBgburz/wANb2bCZLhIG5QOsN5YHTq8latve69FOX48Zp7N07u2I8eFAJ20cTE6/qn7tYWywMgNP7J+7Sl+wuW3oNUM9Ya9dh8ns9lb4vDorCFAGVTExPbBnf3+VAIXrTmDDHUfFjd4buytntHiGnmQfu0vcwyC8ykaB2ETMQSNwA+mtMPh1IcaTkJBJBiGU6acgR40Alhrfyw8a6Aagz2gikxbYHcYjfGndEfVSwwZKFwNAQC2YQCd0iNKQZPHuoDLwd51mfx1a047zHOF+iKcNbrXo6ATcADRiTyyqPqqQw11CI+FMDhkP+jdTPo6Ws26Af7PtXATl6VVnSEttv1jrDnU1se/ew+It4hRcbKYfMttZQ6EdU6+VR2Ct1L2loC5sPeV1V1MqwBB7DrSlcj6B7SlTYY6r1k7jvHgTPj2V11a2ZhRRRQBVf8Aug4250q2+ivlFEg27F64CTEmbaMBG6DroasCiiBShc/M4n9zxf8AJpvdtsf0OJ/dMX/Jq86KyzEWPPt7AXD+hxH7pi/5NNW2Rd+Zv/umL/k16MopmFjzj+RrvzN/91xn8ij8jXfmr/7rjP5FejqKZhY84vsW6TPRX/3TGeH6ClLezL4n4O+ZEa4TGHymxoe2vRVFMwsedl2ZfylcmIgkH/lcb8UEfM/rGsfkm/8AIxH7rjf5NeiqKZhY89DZ9/q9S/1RAnCYw8SdQbOu+i5s6+3xLw7sHjB5xY1r0LRTMLHnx9n3yxcpfksWj3pjY1M7jZ3Vi3s68DOW/uI/5XG/GBHzPbXoSimYWPPQ2XeiMt/90xs+B6DStG2NdO9L578Jjf5FeiKKZhY88/km583e3D/4TGcP/wAFY/JNz5u9+6Yz+RXoeimYWPPA2Rc+bvfumM/kUrb2Y4/RX/3TGfyK9BUUzCxRdiww/RYj90xn8intt4/RYn9zxn8mrnopmFio8BtBrVxHSziSwYQPemKEzpBJtAAEEjxq3BRRUN3CQUUUVBJAttlmd1UqBNtUkGRmudGXb6QO6d8DI2nd62q/Bxm6vr/DPb016uiHxPZBlMZZBVzkDnJEH40SQvnUO158ygYH1QSvWXcDOhiAc0ET2HfMZ5l0NOSfUcna7GJTLmgqQwJIF1bbZhGnrDnoeBrbC7Uc5M6KMzuuYM2UZXygTl9Y8AYmN/CkBefQHAnq6A5lIiQ3V4+sqnUDUVKDA25nIJDFvEmSY5zr30vHoTlnfcWuzBykAwYJEgHtEifOoS5tS6Ldt432kbRCQ7sRKEj1N4id5YcoM9SAwdvq9QdT1dPV7uVQmluZTi3syOxGNuK7KGVhmRc2XRGdwoXf1jlMxzy/KrOH2q2ZbbKCzM6hgQAejYhiRw6oBjWSTuikHAXOBg9C0TwYF2liACd6ht3xgeRKnToGK+87vVIAYIsHISQQQeZJ8e2pujHLO+4p78uSEzLma+1vMF3AWzc0BOp0jfxpmm27mjEArAzQvVnoy8TMhi2WBuhhrJpZ8YGORsHdIPWJyiM+g/B7KkrGEtnK/RBWgQCBK6QBppIGnsopLoQ4T5MR2biHLMjkMQlt8yiB180rvO4rPcwpTaN5lyKpyl7gTNE5RlZpAOknLAnieO6lsNhUtiEUKDroI4R9AA7hTXaeIjqGw10GCYAK7/pGhqLq5movLYQw2LfpuiL5grsCYEn4NXAaBAIzcI0IpFsXdi4czgdLkUxayAG6qdX4+aCfWEeystcQoP8AgrkAk5ciyNQGIE6kzPMweVGZIYnBvrvAQEkyCZ8YM9lTmRhknbf1H2CvN0ly0zZwqowaAD18wytGkjKDuGjDvL6ovZOJGijDPakSZUBc0a6jUntI1qUrFmyKaWoUVxHujemYwVshWCtAlokjNOVUHxmME8IAJJFVDe9L9rG6GW1jADqvVuyQOIgCRu51tjSTX7pJfX+jVGspSair23ff0PStaPcA3kDvMVwHuYenpxo6G9/ehcytAGcDeCBpmHZv15aq+6uOph/2n+hazp4Zyqqm3vz3GJrOjSdS2x3HvlPlr5ij3yny18xVBqkmAJJ3AD2Cn2Jwa2uo2t6RmAjLb/VY/GfmBovadB3S4Wlpn9PyVMeMSkr5NPH8F5AzurNMsQeitfBqqkkACIGa44GYgdrSedNtp4l7Kgm4WJMBVtgsdCTAngoZvCqlK5eN2V2S1FRt25cCC4t0MpykdUQQxAkEHkZpliNsXQSFUGNActwgmf1UOkcZ86gkn6Kg7W07zRCLE9aSwI7gUE6d2unc+98N+BQD6im20bhW1cYGCEYg8iFJmonF4y7KgzbBFrcwM5ryKTu00JHjWUY3Nc6ijuT9Fc7icVcD5Fd7ihyAVKBj8EWySQAcpg89YM1N4C4WtIxYMSiksNAZAMgUcbIRqKTsL0UVFbUx7JctqsgZkzHIxBDGMoIEcyfDnUJXMpSUVdkrRTPFYxltl1QkgiQQZA4tAkmBrA1qPfajHpAkHR2DM0AKqWz1YXm86+e4VKi2YyqRjuTlFQSbaYKT0ZZUXrNJGoth5YxABJjnqDup9s287PeDkSrqAFMgSinSQOJo4tBVYt2Q/oopttK6y2nZCAyoWGYEjQTqARPnWJm3ZXHNFRGJ2g6tplyr0IIgy3SvlMGdI0jfJkU3/Kl7KCApzWku6KeqHVyFOuolVGbTeTpwyyM19rG9ifopjs7HdJOhBkkAiNASvmCDPKfGn1Q1Y2Jpq6KP91zA/wDEpdvyLAe7r1soudGDa6QoCyqSBqoJgHdqRzI2/hAzRtC8Um3lDnEFhDvnLFVAkqLUHXcdAYj0Bt3Yq4hSIUyMrK4lHXfDjeCDqGGo8xVa4/3IbZfNaw4Vv1rgKDt7uzIa5pVpxlaUW+jX99DLD4aEY5VJLVvXvd/7IH3K8Kvv+ybElMzOPWgA2evGYBimcsAWEwV5zVi+6eVjDZwSud8wUgGOrMEgiakfQr0OTAqzFukvPozxAA35UHAT5wOQAS9PsIlwWgyXmy9I3wQBIjKNZHaI8e6rHD17VISnokre/wByOLJVqfZ0dbJJX52d2/nI5PGYBcEDeVw7XP8AlW0kIVDG8f1gGCjtkxurmVOo766Z9mWngRjCqqoBcKAqsHIiRooyNm5cq1wuxbD3FthMUpY6F1RR2QSIMkEVaUsdRiv3SbfW30+dTzdXh2IlJZYpRXK/1+dLFl7YuBbQJMDpbA87yD665/bN3pbqsxv2wEywptArJkkHpQZbqzow6o8ej2vs4X7L2SxXMBDCJUghlYTpowB8K45vc5cxOOckcTaQ/XNU1PLu3byL+pm2Sv5klhMaluz0ClyqxBfowRDA5YTSOXGlruzSzlvg9SCZtSdP1sw17YqJwnucZbtu42LZgjA5eiVZiNJB7BXS3diSSelYSSdAvZA8CPb3Unlvo7k081v3KwhhbDIIJWOAVMsc/jEH2U8itMHscpM3S081UfQBTv3p2+z+tYGwb4/HurFFwz3BprplMwCPby4HxRuY4spnCORugqJMHdB7gddPGJzRUAx7/ZQsYR4GYgKB1eswAgxBIAP+KlsFjnJVTh2QbidMo04dlFFASVMtqYk21Ui013rCQokroTmiDMEDzoooBjd2rnTXB3jqvVe3zaCY11Gp8ORmtbO0UuFlODudXrGbawDAjfrmKxpExRRQiyNfyogKlsHdVmGUE2lnXq5ZnlOnIbqmMHbUKMqBAQDlyhSJG4gcazRQWQtUZisa2ZrZsMy+qT1oIIE/FjWTxjQyQYBxRQkSF+WzvhHBULlIGYkS0SOYiY1jOOc0laxttVcnC3UWCWlIBAaANT+tOXdGbxKKm5GVG1raiqbjLhMQDrJ6OM0TGWTxJ5DeSeNTVppAMESAYO8TwNYoqCTeiiigCm2NwpcCHZCOI+vxA/BoooBkdkP/APMXOHPWCTrr2xpwA7SX2Dw5QEFy5JmT3Ac+ydIGu4UUUA4ooooAooooAooooD//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEhUPEBAVERUVFRUQFRASEBYWFRcVFRUWFxURFRUYHSggGCAlGxcYITIlJSorLi4uFx8zODMtNygtLi0BCgoKDg0OGxAQGy0lICUtMCsyLTA1MC4tMC8tLS0tLS83NS0tNy0wNy8tLS0vLS0tLzUtLy0rLi0vNystLS0rL//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcDBAUCAQj/xABNEAABAgMCBQ4LBgUCBwAAAAABAAIDBBEFIQcSMUFRBhMUFyJTYXFzgZGTstEyNVJUY3KUoaOx0hU0QoLB8GKSosLxM0MjdISF0+Hj/8QAGgEBAAIDAQAAAAAAAAAAAAAAAAIEAQMFBv/EACsRAQACAgEDAwMDBQEAAAAAAAABAgMREgQhMjFBkRNR8GGxwSJCcdHhFP/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARFzdUdsMkZWNORGlzYTC/FGVxyBo0VJA50HSRUK/DlPVulJcDMCYhNOOor0Lzt5T3m0t8T6kF+IqD28p/zaW+J9SbeU/wCbS3xPrQX4ioPbxnvNpb4n1pt4z/m0t8T60F+IqE28Z7zaW+J9abeM95tLfE+tBfaKhNvGe82lvifWm3jPebS3xPrQX2ioTbwnvNpb4n1pt4z3m0t8T60F9oqE28Z7zaW+J9a+beM/5tLfE+tBfiKg9vGf82lvifWm3jP+bS3xPrQX4ioPbxn/ADaW+J9a+beU/wCbS3xPrQX6ioLbyn/NpX4n1oMOM/5tLfE+tBfqLgahtUrbTk2TYZrZJcx8OtQ17DR1DnGcca76AiIgIiICIiAolhY8UTnJjtsUtUSwseKJzkx22oKcwYS7Hsj47Guo6HTGaDS5+SqnAkIO8w+rb3KGYKfAmPWh/J6nwCuYvGFLL5y1hZ8HeYfVt7l7Fnwd5h9W3uWyAvbQptfdqiz4O8w+rb3L2LOg7zD6tvctprVka1GWoLOgbzD6tvcvQs2BvMPqm9y3WtXsNWEmj9mQN5h9U3uT7MgbzD6pvcugGL7iLA532ZA3mH1Te5eTZsDeYfVN7l0XgAVJAGkrUiTsIfi6Gk/op1pa3jG0LZK18p01zZ0DeYfVt7l4NnQd5h9W3uW1CmobzRrwT5OQ9BvXtzUms1nUwzFomNxLnmz4O8w+rb3LwbPg7zD6tvcug5qxkLA0DZ8HeYfVt7l5MhB3mH1be5bxC8ELLDTMhB3mH1be5RXCNKw2SgLYbWnXmCrWAHwX3VAU0IUSwmfcxyzOy9Rv4ylj8oTfAL4r/wCojfMKxlXOAXxWP+YjfMKxlRXxERAREQEREBRLCx4onOSHbapaolhZ8UTnJDttQVHgm8CY9aF8nqfgKA4JPAmPWhfJ6sEBXMfjCnl85AFkaEaFkaFNDQ1qytajWrM1qizp8axewxergKkgDSTQLRjW5LsOLj4xyUbT9SFKmO9/GNo3yUp5Tpvhi58/abIVQCHEcO5HGf0C0bQtd0TcwwWj3njIyDgC5phtbunni4OLR+71ewdF75Phz+o6/wDtx/LxOT8WIa1poLh2Wd65saBEdecY8L3ke5pFPetyJaEIXA9C1JibdQuYcYC8jPTTwrs4qzXtWNOZubTtqxJd4zjmLz8yQunZOqF0MiHHNWG4RCalvGc494Ufn50tDYrXblxxSK5HUqKcYB6F8fEDmCJmJDXDjyFbcuCuWnG//YWMVr45iYWWQsbmrj6jp4xIToLjV0E4ldLDXEPuI5gu44Ly2XHOO80n2dqs8oiYa5C8ELO4LGQoMsRCiGE77mOWZ2XqYkKH4UPuY5ZnZeo38ZSx+UJtgF8VDl43zCsVV1gF8VDl43zCsVUl4REQEREBERAUSws+KJzkv72qWqJYWPFE5yX97UFSYIRuJn1oXyerEaFXuB/wJn1oXZerFAVvH4wqZPKX1oWVoXloWZgUkXpjVpz1qNh7lu6d7hx6Vp25ahbWFDJDvxOpkFMgP6qJzEy/HFGUJIaCwuAFbvKrRdPo+g+pHO/p9nP6nq5rPDH8ti1LYiRMckk4ubj/ABUzBc/U9G1yIHAYwILXOJ8BzbyCMwOUUXUbYzIhDnxHYwNQ5lGn1SabodB01W06HiAthS1a5XOxRjcJJyrr86VrwpH8ObyjU77zLTn7bZD3MPdOyXX/AOVxYwnI5qIT/wA25H9VFtWnaUzAFTCENuTGYGkCuktyLiv1QxTleelWcOPjG6xH+d7/AGSpime8Q9zchMwxjOhmgvJaQ6nMDVYrMtQteM94u08CyQbfeDe5YpeSBnHENxYbC2MRmq5oc1n8xPM0rbbJMRq8Q3xSNTyjWmraMQthRGDI2YDB+URB8iOlZ2TNIMNmd76/lYL/AHuHQsduPESkNmd+N8y55XMhzQxzEF7YYDGA5yK06TU8VdCp5Mk1vqVjHSL03pYeoGJWYjgeQK8bXNHepu4KFYKJR2txph1d25sIE58QFz3DjLwPyqcOC871t+ea0wvY68aRDXcFjcFncFiIVZJhIUPwpfcxyzOy9TMhQ3Cp9yHLw+zEWL+Ms08oTPAL4qHLxu0FYqrrAL4qHLxu0FYqpLoiIgIiICIiAolhY8UTnJf3tUtUSws+KJzkv72oKmwO+BM+vC7L1Y7Qq5wOeBM+vC7L1ZDQrWPxhVyeUvbQszbrzx1WNoWlb7XayaVpUY1PJ7q0W7HTneK71tqyW4Um32ci1J6FFi0aM1MfJjEaBxL4yThGhIyX5SuS+Va5zXlztyagCg6VkmZpxGKwE8DQSegL0NMMxEVrPaHnsuTnblE+roTVow4QoCB71F7WtTXK0mCOAsIHSCT7lhtCUmjV2svP5anoyqMTj3AkOBB0EUV3Hix445RO5bcGHlLcizseXe17ycUkHGBxmPbXdCouNRUEHnW3qksxsNxfCFAcrBkHC3g4FzLIj64yLAde3FMVtczm0DgONpr+QLuz7xEcGONGta0vdwUFRx/+zmUq25zy391u+6WiIhzbBs7XTr0S6Ew5/wDcdmhtGcVy9Ge7dtO0by1vhONXUzcBPzPNx4bStWg1uHuA0YozBg0AeWRl0V0krgOjueDre5Zniuyc3lHiVe/URXvPeUoxWyW5W9GScmSaw2GrnDdOyANz35gsMpBMRzIbCBU0aXkNbU5YryfBHHkA41iAFMVtcU3ku8J/8TtDeBYnRamg6f1XNyZZmeUr1aREahd1mW/ZcnBhyrJtjgxuLjMa94c7K59WNIvcSeddiStWXmP9GMyIcuKHbqmnFN6/P7HhuXLoOXozfNb8rPuBDmnFIvBBoQdIIvCr16Ol/edo3vavt2Xw4LG4KJ6kdVpjkQJimObmRMmMfJdw6Dn48sucFTy4rYrcbJ1tFo3DCQoZhV+5Dl4fZiKakKF4V/uQ5eH2Yi038ZbKeUJjgF8VDl43aCsVV1gF8VDl43aCsVU1sREQEREBERAUSws+KJzkv72qWqI4WfFE5yQ7bUFU4GvAmfXhdl6slqrbAx4Ez68LsvVlNVqnirX8pZGBZCwOBa4VBBBB0HKvDFHtUlsOaCyGaX4teEZTzZFZ6fBbNfjVW6jPXDTlZx50Q5dzmufrlCcVrTeRmLjmXCtLVBEAIZRg8ll3ScpWGcim+vSuHNmq9ZGOKV795cTDji9t67MUza0cmoiOHEVvys/suC+FFoYkNuM19BUgZum7nbwrpSepbXIdfxUvK5mp6zzBmYjIlxaMW8ZnEEHhyA8y0TvlGpXK5cNq24+tWnqWY+JEisZkMGKKnIHFpDPeVuzjzCMd5vxHuxQM7sbFYOasM/zjOtuy4IlYrmNFBjYw4ibhw0ycyw2xBvjNGekUcQ1up/oeeZYtS3D9dJ/Ui2X9OyKmLnfujmBJxB+rzw5Pmvr4pO6ea00i4cTe/oWo6Jikil+Q8fzK9woZdQuyVuAzk5AAP2feuJGWZ7R3/Pd05rHq+xIhfc2tOkk6OErfkZB7vAbU6crRw/xH3L1KS7QaFuO7emnctHpHC78o59KzOMWYOIDuMmKwYrTzZxx1VjFgm39du8tOTJrtHaHh9mQm11yO0OymrxXnCxGXDd1DiNiNGXFIqOEhdVmp9wGQDgXAiwtailoupfxFSy0nFMdmvFkjLuItt3JBxuLTQihBGYi8HpV0yUfXYUOL5bGRP5mg/qqVkiXUDRVziGtaM7nXADnV2ycuIUNkIfgY1n8rQP0Wnr7RNafdnBExMvpUKwsfchy8PsxFNioThZ+4t5eH2Yi5V/GVqnlCX4BfFQ5eN2grGVc4BfFQ5eN8wrGVRaEREBERAREQFEcLPiic5IdtqlyiOFrxROckO21BVWBfwJr14XZerKaq1wMeBNevC7L1ZQVqnjCvfyZWKI6p5Iw345G4eSQ7Q43kHnqf8KXNXqJBbEaWPaHNIoWnIVa6XqZwZOXt7qvUdPGanGVR2jLqOxriQVPtU1iPlN22sSATQH8TCfwu/Q5+A5YXa0LI9uReormrlx8qy5eLFfFbhZ3jbz4MOGWOxGuY6K9waHOo2m5FeE+8LSg2w2ZcHOLiaUDnMY1w/M3LxO6QuVAi40LWzpdD/LEa4j+pvvWtYpyKNJjnH5Kf0K1padd3ctUkYr84NCdLTkPT7yV8n4lQyKM1ATx1xSeCoI/OvdptrDA03c+Y9IC0IcXHhYuWoIA0kUcB/SRzrdb7I443ES149jQ4rjEYN1nh1ANdArd+860/suO53+k6CwXF9C95GcDEqejLnXyNOhrQXNL2ZGvaaOb/AAkj9bitF72RDe+YI8lwaR2h8lyM84uWqx394/37/DoY4ya7z2/Pzu67YUP/AEsdsCGPCDnAxX8bG1cBwdK68C0YEJuLBhuf/E7cg8Ok+5cKThQBkZEPG1o/uWSYtZrRiwWNLqhtXOqBXSG8+dW63rjryvOlfLinJPGImf2LU1STRcGQ3NZU5GsB97qrBNw8Yte++I6gJAvdmG5GU1uuC0XTDQ90QjGcTcMwHDo004VceD7UqJeEJqZYHTMTdVcL4TCNzDaPwmmXPfTNfys3Ux3me8z6R7Qt0wxWI4xr+WnqG1JPhETcy3FeB/woJysr+N/8WgZs9+SbFZHLGVz75LXnct0ViPRjKhOFr7iOXh9mIpu5QnC19xby8PsxFrv4ylTyhLcAviocvG7QVjKucAviocvG+YVjKotCIiAiIgIiICiOFrxROcmO2xS5RLCuwusmca0EkwxQAVPhtzIKwwITMoyHNbJjQoRL4OKIkZsOoxX1pUiuZWd9pWX53Le1s+pfmB0hH3iL1L+5eDZ8feInUv7lOLTCM1iX6jFqWZ55Le1s+peha1meeS3tcP6l+WPs+NvETqndybAi7zE6p3cs85Y4Q/Usa07Le0sfNyrmuBaWmahkEHKDulHo1i6nyC3Xpcg5tn//AEX572BF3mJ1Tu5Ngxd5idU7uU6dRkp4zMMTirPrC/Ydganm5IsAXg+MDlaaj/cWJtgan4bSYb5ckA4rftA3mlwqYqofYMXeYnVO7k2DG3mJ1Tu5bI6zNE75T8yxOGkxrS/hZ9ivDA98sARV42eNydAIi6QNK1GWTYmthwEBjy4OMI2mHYrsahOMIoFKFx6LlRmwY28xOqd3JsGLvMTqndyz/wC7PvfKfmUY6fHEaiI+F3DU5YAdEcNZF9WgWkRj1JJFNfpTJlAy0pdU5vsOwsegEri4mNjfaIrrl+4prl2a/hOi+i9hRd5idU7uTYMXeYnVO7lrr1OSs7i0/KdsVbesLyk7EsOJCBmNjw3muNDbaRIF5pe2LQ3UKN1KamhcHQB/3F3/AJVRuwYu8xOrd3JsGLvMTqndyX6jJed2mZK461jUL5s/UvqbhvbEa+XBY4PGNaBIqDUEh0Shv0qWm1bM88lva4f1L8s7Bi7zE6p3cmwYu8xOqd3LX9SUuEP1IbTsvzuW9rZ9S8PtOzc01Km8ZZ1guznLmvuz8C/LuwYu8xOqd3L7sGLvMTqndyc5Y4Q/TX2pIX1jyouFKT7HEmpqCCRQAUvrnyXXwnC5OSkSzwIMaC+JsmHuYcdjzi4j6uxWvddVU3sGNvMTqndy9tk428ROPWndyxNplmKRD9E4BPFQ5eN8wrGVd4CIbm2WA4Fp1+NcQQcozFWIoJCIiAiIgIi5WqG3YUlD1yJeTUMYMrjTJXMNJQbVp2jCl2GJFdijIBncfJaM5VX6ptUMWaN4owHcQhkH8TjnPDmzLnWxb75p5iRX1zBrfBaNDR+6rRdMNP4lKIGu5hN7gSfVWGJArcWk560/dVtGM3SvOym6UGAQSBTFLrr7iDzf5X2FK0qRdcdyWmnECKj5c6ziabpXoTjdKDU2JU+CW8IFa/vvSLL6W8GNky5TetszTdKwx4uNQYwoNOn9/NBh2O2lMvHdTiyoJZt5rlzL0PWHSV6p/EPf3IMOxWmmbiv911V8dKtP7vWf8w9/cvOOPKCDE6VbTTx/JBKN0/rXu5lmx+EJjjyh70GvsRua7iPvTYjeLNWt9OZbAcPKHvTGHlD3oMAka5BXhzCifZ5y0PEAcubKFuQYob+ILPrzfK5kHL2AdBycP+F82AT+E3cC6uvt0ryZlulBzdhuGQE8Vf1WSHLuaagGucUJB51vCaZpX0TbdPuQdPU9a8aUdrkI3Hw4TgcVw0EadBzdIVrWJbUGbZjwzQjwoZ8Jp0EaOFUuJxulbEla5gvEWFELXDPS4jySM4SReSLg6ltUsOdaQNzEaBjszX5HNOj5e895RBERAXOtixYE2zW47S5tcamMReM9y6KIIicHFneRE69/evBwa2doje0P71MUQQw4M7O0RvaX96bWVnen9pf3qZoghe1jZ3p/aX96bWNnen9pf3qaIghe1jZ3p/aX96bWNnen9pf3qaIghe1jZ3p/aX96bWNnen9pf3qaIghe1jZ3p/aX96bWNnen9pepoiCF7WNnen9pem1jZ3p/aXqaIghe1jZ3p/aXptY2d6f2l6miIIXtY2d6f2l6bWNnen9pepoiCF7WNnen9pem1jZ3p/aXqaIghe1jZ3p/aXptY2d6f2l6miIIZtZWdoje0v719GDSztEb2h/epkiDj2HqalpLG1gOGNTGxnl1aZK1XYREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB//2Q==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3314,6 +4196,18 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0B57D0"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3356,12 +4250,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3369,13 +4265,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3413,7 +4317,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3447,6 +4351,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3481,9 +4386,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3656,14 +4562,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3692,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3706,7 +4620,7 @@
         <v>669</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>687</v>
+        <v>1091</v>
       </c>
       <c r="F2" t="s">
         <v>688</v>
@@ -3721,7 +4635,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3734,8 +4648,8 @@
       <c r="D3" t="s">
         <v>670</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>687</v>
+      <c r="E3" t="s">
+        <v>1092</v>
       </c>
       <c r="F3" t="s">
         <v>689</v>
@@ -3750,7 +4664,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3763,8 +4677,8 @@
       <c r="D4" t="s">
         <v>671</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>687</v>
+      <c r="E4" t="s">
+        <v>1093</v>
       </c>
       <c r="F4" t="s">
         <v>690</v>
@@ -3779,7 +4693,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3792,8 +4706,8 @@
       <c r="D5" t="s">
         <v>672</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>687</v>
+      <c r="E5" t="s">
+        <v>1094</v>
       </c>
       <c r="F5" t="s">
         <v>691</v>
@@ -3808,7 +4722,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3821,8 +4735,8 @@
       <c r="D6" t="s">
         <v>673</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>687</v>
+      <c r="E6" t="s">
+        <v>1095</v>
       </c>
       <c r="F6" t="s">
         <v>692</v>
@@ -3837,7 +4751,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3851,7 +4765,7 @@
         <v>670</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>687</v>
+        <v>1096</v>
       </c>
       <c r="F7" t="s">
         <v>693</v>
@@ -3866,7 +4780,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3879,8 +4793,8 @@
       <c r="D8" t="s">
         <v>674</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>687</v>
+      <c r="E8" t="s">
+        <v>1097</v>
       </c>
       <c r="F8" t="s">
         <v>688</v>
@@ -3895,7 +4809,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3908,8 +4822,8 @@
       <c r="D9" t="s">
         <v>675</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>687</v>
+      <c r="E9" t="s">
+        <v>1098</v>
       </c>
       <c r="F9" t="s">
         <v>689</v>
@@ -3924,7 +4838,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3937,8 +4851,8 @@
       <c r="D10" t="s">
         <v>676</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>687</v>
+      <c r="E10" t="s">
+        <v>1099</v>
       </c>
       <c r="F10" t="s">
         <v>690</v>
@@ -3953,7 +4867,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3961,13 +4875,13 @@
         <v>348</v>
       </c>
       <c r="C11">
-        <v>162.48</v>
+        <v>162.47999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>677</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>687</v>
+      <c r="E11" t="s">
+        <v>1100</v>
       </c>
       <c r="F11" t="s">
         <v>691</v>
@@ -3982,7 +4896,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3995,7 +4909,7 @@
       <c r="D12" t="s">
         <v>674</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>687</v>
       </c>
       <c r="F12" t="s">
@@ -4011,7 +4925,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -4024,8 +4938,8 @@
       <c r="D13" t="s">
         <v>674</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>687</v>
+      <c r="E13" t="s">
+        <v>1101</v>
       </c>
       <c r="F13" t="s">
         <v>693</v>
@@ -4040,7 +4954,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4053,8 +4967,8 @@
       <c r="D14" t="s">
         <v>669</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>687</v>
+      <c r="E14" t="s">
+        <v>1102</v>
       </c>
       <c r="F14" t="s">
         <v>688</v>
@@ -4069,7 +4983,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -4082,8 +4996,8 @@
       <c r="D15" t="s">
         <v>678</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>687</v>
+      <c r="E15" t="s">
+        <v>1103</v>
       </c>
       <c r="F15" t="s">
         <v>689</v>
@@ -4098,7 +5012,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4111,8 +5025,8 @@
       <c r="D16" t="s">
         <v>679</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>687</v>
+      <c r="E16" t="s">
+        <v>1104</v>
       </c>
       <c r="F16" t="s">
         <v>690</v>
@@ -4127,7 +5041,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -4140,8 +5054,8 @@
       <c r="D17" t="s">
         <v>670</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>687</v>
+      <c r="E17" t="s">
+        <v>1105</v>
       </c>
       <c r="F17" t="s">
         <v>691</v>
@@ -4156,7 +5070,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -4169,8 +5083,8 @@
       <c r="D18" t="s">
         <v>671</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>687</v>
+      <c r="E18" t="s">
+        <v>1106</v>
       </c>
       <c r="F18" t="s">
         <v>692</v>
@@ -4185,7 +5099,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -4198,8 +5112,8 @@
       <c r="D19" t="s">
         <v>678</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>687</v>
+      <c r="E19" t="s">
+        <v>1107</v>
       </c>
       <c r="F19" t="s">
         <v>693</v>
@@ -4214,7 +5128,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -4227,8 +5141,8 @@
       <c r="D20" t="s">
         <v>680</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>687</v>
+      <c r="E20" t="s">
+        <v>1108</v>
       </c>
       <c r="F20" t="s">
         <v>688</v>
@@ -4243,7 +5157,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -4251,13 +5165,13 @@
         <v>358</v>
       </c>
       <c r="C21">
-        <v>284.78</v>
+        <v>284.77999999999997</v>
       </c>
       <c r="D21" t="s">
         <v>672</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>687</v>
+      <c r="E21" t="s">
+        <v>1109</v>
       </c>
       <c r="F21" t="s">
         <v>689</v>
@@ -4272,7 +5186,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -4285,8 +5199,8 @@
       <c r="D22" t="s">
         <v>672</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>687</v>
+      <c r="E22" t="s">
+        <v>1110</v>
       </c>
       <c r="F22" t="s">
         <v>690</v>
@@ -4301,7 +5215,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4314,8 +5228,8 @@
       <c r="D23" t="s">
         <v>681</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>687</v>
+      <c r="E23" t="s">
+        <v>1111</v>
       </c>
       <c r="F23" t="s">
         <v>691</v>
@@ -4330,7 +5244,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4343,8 +5257,8 @@
       <c r="D24" t="s">
         <v>669</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>687</v>
+      <c r="E24" t="s">
+        <v>1112</v>
       </c>
       <c r="F24" t="s">
         <v>692</v>
@@ -4359,7 +5273,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4372,8 +5286,8 @@
       <c r="D25" t="s">
         <v>682</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>687</v>
+      <c r="E25" t="s">
+        <v>1113</v>
       </c>
       <c r="F25" t="s">
         <v>693</v>
@@ -4388,7 +5302,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -4401,8 +5315,8 @@
       <c r="D26" t="s">
         <v>681</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>687</v>
+      <c r="E26" t="s">
+        <v>1113</v>
       </c>
       <c r="F26" t="s">
         <v>688</v>
@@ -4417,7 +5331,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -4430,8 +5344,8 @@
       <c r="D27" t="s">
         <v>678</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>687</v>
+      <c r="E27" t="s">
+        <v>1113</v>
       </c>
       <c r="F27" t="s">
         <v>689</v>
@@ -4446,7 +5360,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -4459,8 +5373,8 @@
       <c r="D28" t="s">
         <v>671</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>687</v>
+      <c r="E28" t="s">
+        <v>1114</v>
       </c>
       <c r="F28" t="s">
         <v>690</v>
@@ -4475,7 +5389,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4488,8 +5402,8 @@
       <c r="D29" t="s">
         <v>681</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>687</v>
+      <c r="E29" t="s">
+        <v>1115</v>
       </c>
       <c r="F29" t="s">
         <v>691</v>
@@ -4504,7 +5418,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -4517,8 +5431,8 @@
       <c r="D30" t="s">
         <v>683</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>687</v>
+      <c r="E30" t="s">
+        <v>1112</v>
       </c>
       <c r="F30" t="s">
         <v>692</v>
@@ -4533,7 +5447,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -4546,8 +5460,8 @@
       <c r="D31" t="s">
         <v>672</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>687</v>
+      <c r="E31" t="s">
+        <v>1116</v>
       </c>
       <c r="F31" t="s">
         <v>693</v>
@@ -4562,7 +5476,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4575,8 +5489,8 @@
       <c r="D32" t="s">
         <v>672</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>687</v>
+      <c r="E32" t="s">
+        <v>1117</v>
       </c>
       <c r="F32" t="s">
         <v>694</v>
@@ -4591,7 +5505,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4599,13 +5513,13 @@
         <v>370</v>
       </c>
       <c r="C33">
-        <v>66.84999999999999</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="D33" t="s">
         <v>682</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>687</v>
+      <c r="E33" t="s">
+        <v>1118</v>
       </c>
       <c r="F33" t="s">
         <v>695</v>
@@ -4620,7 +5534,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4633,8 +5547,8 @@
       <c r="D34" t="s">
         <v>681</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>687</v>
+      <c r="E34" t="s">
+        <v>1119</v>
       </c>
       <c r="F34" t="s">
         <v>696</v>
@@ -4649,7 +5563,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -4662,8 +5576,8 @@
       <c r="D35" t="s">
         <v>674</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>687</v>
+      <c r="E35" t="s">
+        <v>1120</v>
       </c>
       <c r="F35" t="s">
         <v>697</v>
@@ -4678,7 +5592,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4691,8 +5605,8 @@
       <c r="D36" t="s">
         <v>669</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>687</v>
+      <c r="E36" t="s">
+        <v>1121</v>
       </c>
       <c r="F36" t="s">
         <v>698</v>
@@ -4707,7 +5621,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -4720,8 +5634,8 @@
       <c r="D37" t="s">
         <v>675</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>687</v>
+      <c r="E37" t="s">
+        <v>1122</v>
       </c>
       <c r="F37" t="s">
         <v>699</v>
@@ -4736,7 +5650,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -4744,13 +5658,13 @@
         <v>375</v>
       </c>
       <c r="C38">
-        <v>131.95</v>
+        <v>131.94999999999999</v>
       </c>
       <c r="D38" t="s">
         <v>672</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>687</v>
+      <c r="E38" t="s">
+        <v>1123</v>
       </c>
       <c r="F38" t="s">
         <v>694</v>
@@ -4765,7 +5679,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -4778,8 +5692,8 @@
       <c r="D39" t="s">
         <v>669</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>687</v>
+      <c r="E39" t="s">
+        <v>1124</v>
       </c>
       <c r="F39" t="s">
         <v>695</v>
@@ -4794,7 +5708,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4807,8 +5721,8 @@
       <c r="D40" t="s">
         <v>678</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>687</v>
+      <c r="E40" t="s">
+        <v>1125</v>
       </c>
       <c r="F40" t="s">
         <v>696</v>
@@ -4823,7 +5737,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -4836,8 +5750,8 @@
       <c r="D41" t="s">
         <v>671</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>687</v>
+      <c r="E41" t="s">
+        <v>1126</v>
       </c>
       <c r="F41" t="s">
         <v>697</v>
@@ -4852,7 +5766,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -4865,8 +5779,8 @@
       <c r="D42" t="s">
         <v>676</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>687</v>
+      <c r="E42" t="s">
+        <v>1127</v>
       </c>
       <c r="F42" t="s">
         <v>698</v>
@@ -4881,7 +5795,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -4894,8 +5808,8 @@
       <c r="D43" t="s">
         <v>677</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>687</v>
+      <c r="E43" t="s">
+        <v>1128</v>
       </c>
       <c r="F43" t="s">
         <v>699</v>
@@ -4910,7 +5824,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -4923,8 +5837,8 @@
       <c r="D44" t="s">
         <v>672</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>687</v>
+      <c r="E44" t="s">
+        <v>1129</v>
       </c>
       <c r="F44" t="s">
         <v>694</v>
@@ -4939,7 +5853,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -4952,8 +5866,8 @@
       <c r="D45" t="s">
         <v>683</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>687</v>
+      <c r="E45" t="s">
+        <v>1130</v>
       </c>
       <c r="F45" t="s">
         <v>695</v>
@@ -4968,7 +5882,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -4981,8 +5895,8 @@
       <c r="D46" t="s">
         <v>675</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>687</v>
+      <c r="E46" t="s">
+        <v>1131</v>
       </c>
       <c r="F46" t="s">
         <v>696</v>
@@ -4997,7 +5911,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -5010,8 +5924,8 @@
       <c r="D47" t="s">
         <v>682</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>687</v>
+      <c r="E47" t="s">
+        <v>1132</v>
       </c>
       <c r="F47" t="s">
         <v>697</v>
@@ -5026,7 +5940,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -5039,8 +5953,8 @@
       <c r="D48" t="s">
         <v>674</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>687</v>
+      <c r="E48" t="s">
+        <v>1133</v>
       </c>
       <c r="F48" t="s">
         <v>698</v>
@@ -5055,7 +5969,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5068,8 +5982,8 @@
       <c r="D49" t="s">
         <v>683</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>687</v>
+      <c r="E49" t="s">
+        <v>1134</v>
       </c>
       <c r="F49" t="s">
         <v>699</v>
@@ -5084,7 +5998,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -5092,13 +6006,13 @@
         <v>387</v>
       </c>
       <c r="C50">
-        <v>266.53</v>
+        <v>266.52999999999997</v>
       </c>
       <c r="D50" t="s">
         <v>677</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>687</v>
+      <c r="E50" t="s">
+        <v>1135</v>
       </c>
       <c r="F50" t="s">
         <v>694</v>
@@ -5113,7 +6027,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5121,13 +6035,13 @@
         <v>388</v>
       </c>
       <c r="C51">
-        <v>268.04</v>
+        <v>268.04000000000002</v>
       </c>
       <c r="D51" t="s">
         <v>669</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>687</v>
+      <c r="E51" t="s">
+        <v>1136</v>
       </c>
       <c r="F51" t="s">
         <v>695</v>
@@ -5142,7 +6056,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -5155,8 +6069,8 @@
       <c r="D52" t="s">
         <v>672</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>687</v>
+      <c r="E52" t="s">
+        <v>1137</v>
       </c>
       <c r="F52" t="s">
         <v>696</v>
@@ -5171,7 +6085,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -5184,8 +6098,8 @@
       <c r="D53" t="s">
         <v>679</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>687</v>
+      <c r="E53" t="s">
+        <v>1138</v>
       </c>
       <c r="F53" t="s">
         <v>697</v>
@@ -5200,7 +6114,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -5208,13 +6122,13 @@
         <v>391</v>
       </c>
       <c r="C54">
-        <v>308.71</v>
+        <v>308.70999999999998</v>
       </c>
       <c r="D54" t="s">
         <v>682</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>687</v>
+      <c r="E54" t="s">
+        <v>1139</v>
       </c>
       <c r="F54" t="s">
         <v>698</v>
@@ -5229,7 +6143,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -5242,8 +6156,8 @@
       <c r="D55" t="s">
         <v>677</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>687</v>
+      <c r="E55" t="s">
+        <v>1140</v>
       </c>
       <c r="F55" t="s">
         <v>699</v>
@@ -5258,7 +6172,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -5271,8 +6185,8 @@
       <c r="D56" t="s">
         <v>674</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>687</v>
+      <c r="E56" t="s">
+        <v>1140</v>
       </c>
       <c r="F56" t="s">
         <v>694</v>
@@ -5287,7 +6201,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -5300,8 +6214,8 @@
       <c r="D57" t="s">
         <v>674</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>687</v>
+      <c r="E57" t="s">
+        <v>1141</v>
       </c>
       <c r="F57" t="s">
         <v>695</v>
@@ -5316,7 +6230,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -5329,8 +6243,8 @@
       <c r="D58" t="s">
         <v>676</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>687</v>
+      <c r="E58" t="s">
+        <v>1142</v>
       </c>
       <c r="F58" t="s">
         <v>696</v>
@@ -5345,7 +6259,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -5358,8 +6272,8 @@
       <c r="D59" t="s">
         <v>675</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>687</v>
+      <c r="E59" t="s">
+        <v>1143</v>
       </c>
       <c r="F59" t="s">
         <v>697</v>
@@ -5374,7 +6288,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -5387,8 +6301,8 @@
       <c r="D60" t="s">
         <v>675</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>687</v>
+      <c r="E60" t="s">
+        <v>1144</v>
       </c>
       <c r="F60" t="s">
         <v>698</v>
@@ -5403,7 +6317,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -5416,8 +6330,8 @@
       <c r="D61" t="s">
         <v>683</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>687</v>
+      <c r="E61" t="s">
+        <v>1145</v>
       </c>
       <c r="F61" t="s">
         <v>699</v>
@@ -5432,7 +6346,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -5445,8 +6359,8 @@
       <c r="D62" t="s">
         <v>681</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>687</v>
+      <c r="E62" t="s">
+        <v>1145</v>
       </c>
       <c r="F62" t="s">
         <v>700</v>
@@ -5461,7 +6375,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -5474,8 +6388,8 @@
       <c r="D63" t="s">
         <v>682</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>687</v>
+      <c r="E63" t="s">
+        <v>1146</v>
       </c>
       <c r="F63" t="s">
         <v>701</v>
@@ -5490,7 +6404,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -5503,8 +6417,8 @@
       <c r="D64" t="s">
         <v>675</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>687</v>
+      <c r="E64" t="s">
+        <v>1147</v>
       </c>
       <c r="F64" t="s">
         <v>702</v>
@@ -5519,7 +6433,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -5532,8 +6446,8 @@
       <c r="D65" t="s">
         <v>680</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>687</v>
+      <c r="E65" t="s">
+        <v>1148</v>
       </c>
       <c r="F65" t="s">
         <v>703</v>
@@ -5548,7 +6462,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -5561,8 +6475,8 @@
       <c r="D66" t="s">
         <v>680</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>687</v>
+      <c r="E66" t="s">
+        <v>1149</v>
       </c>
       <c r="F66" t="s">
         <v>704</v>
@@ -5577,7 +6491,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -5590,8 +6504,8 @@
       <c r="D67" t="s">
         <v>679</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>687</v>
+      <c r="E67" t="s">
+        <v>1150</v>
       </c>
       <c r="F67" t="s">
         <v>705</v>
@@ -5606,7 +6520,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -5619,8 +6533,8 @@
       <c r="D68" t="s">
         <v>681</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>687</v>
+      <c r="E68" t="s">
+        <v>1151</v>
       </c>
       <c r="F68" t="s">
         <v>700</v>
@@ -5635,7 +6549,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -5648,8 +6562,8 @@
       <c r="D69" t="s">
         <v>674</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>687</v>
+      <c r="E69" t="s">
+        <v>1152</v>
       </c>
       <c r="F69" t="s">
         <v>701</v>
@@ -5664,7 +6578,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -5672,13 +6586,13 @@
         <v>407</v>
       </c>
       <c r="C70">
-        <v>147.7</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="D70" t="s">
         <v>680</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>687</v>
+      <c r="E70" t="s">
+        <v>1153</v>
       </c>
       <c r="F70" t="s">
         <v>702</v>
@@ -5693,7 +6607,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -5701,13 +6615,13 @@
         <v>408</v>
       </c>
       <c r="C71">
-        <v>159.17</v>
+        <v>159.16999999999999</v>
       </c>
       <c r="D71" t="s">
         <v>673</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>687</v>
+      <c r="E71" t="s">
+        <v>1154</v>
       </c>
       <c r="F71" t="s">
         <v>703</v>
@@ -5722,7 +6636,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -5735,8 +6649,8 @@
       <c r="D72" t="s">
         <v>682</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>687</v>
+      <c r="E72" t="s">
+        <v>1155</v>
       </c>
       <c r="F72" t="s">
         <v>704</v>
@@ -5751,7 +6665,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -5764,8 +6678,8 @@
       <c r="D73" t="s">
         <v>672</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>687</v>
+      <c r="E73" t="s">
+        <v>1156</v>
       </c>
       <c r="F73" t="s">
         <v>705</v>
@@ -5780,7 +6694,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -5793,8 +6707,8 @@
       <c r="D74" t="s">
         <v>671</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>687</v>
+      <c r="E74" t="s">
+        <v>1157</v>
       </c>
       <c r="F74" t="s">
         <v>700</v>
@@ -5809,7 +6723,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -5822,8 +6736,8 @@
       <c r="D75" t="s">
         <v>684</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>687</v>
+      <c r="E75" t="s">
+        <v>1158</v>
       </c>
       <c r="F75" t="s">
         <v>701</v>
@@ -5838,7 +6752,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -5851,8 +6765,8 @@
       <c r="D76" t="s">
         <v>673</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>687</v>
+      <c r="E76" t="s">
+        <v>1159</v>
       </c>
       <c r="F76" t="s">
         <v>702</v>
@@ -5867,7 +6781,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -5880,8 +6794,8 @@
       <c r="D77" t="s">
         <v>682</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>687</v>
+      <c r="E77" t="s">
+        <v>1160</v>
       </c>
       <c r="F77" t="s">
         <v>703</v>
@@ -5896,7 +6810,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -5909,8 +6823,8 @@
       <c r="D78" t="s">
         <v>673</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>687</v>
+      <c r="E78" t="s">
+        <v>1161</v>
       </c>
       <c r="F78" t="s">
         <v>704</v>
@@ -5925,7 +6839,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -5938,8 +6852,8 @@
       <c r="D79" t="s">
         <v>673</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>687</v>
+      <c r="E79" t="s">
+        <v>1162</v>
       </c>
       <c r="F79" t="s">
         <v>705</v>
@@ -5954,7 +6868,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -5967,8 +6881,8 @@
       <c r="D80" t="s">
         <v>672</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>687</v>
+      <c r="E80" t="s">
+        <v>1163</v>
       </c>
       <c r="F80" t="s">
         <v>700</v>
@@ -5983,7 +6897,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -5996,8 +6910,8 @@
       <c r="D81" t="s">
         <v>685</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>687</v>
+      <c r="E81" t="s">
+        <v>1164</v>
       </c>
       <c r="F81" t="s">
         <v>701</v>
@@ -6012,7 +6926,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -6020,13 +6934,13 @@
         <v>419</v>
       </c>
       <c r="C82">
-        <v>290.28</v>
+        <v>290.27999999999997</v>
       </c>
       <c r="D82" t="s">
         <v>680</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>687</v>
+      <c r="E82" t="s">
+        <v>1165</v>
       </c>
       <c r="F82" t="s">
         <v>702</v>
@@ -6041,7 +6955,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -6054,8 +6968,8 @@
       <c r="D83" t="s">
         <v>679</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>687</v>
+      <c r="E83" t="s">
+        <v>1166</v>
       </c>
       <c r="F83" t="s">
         <v>703</v>
@@ -6070,7 +6984,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -6083,8 +6997,8 @@
       <c r="D84" t="s">
         <v>671</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>687</v>
+      <c r="E84" t="s">
+        <v>1167</v>
       </c>
       <c r="F84" t="s">
         <v>704</v>
@@ -6099,7 +7013,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -6112,8 +7026,8 @@
       <c r="D85" t="s">
         <v>674</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>687</v>
+      <c r="E85" t="s">
+        <v>1168</v>
       </c>
       <c r="F85" t="s">
         <v>705</v>
@@ -6128,7 +7042,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -6141,8 +7055,8 @@
       <c r="D86" t="s">
         <v>673</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>687</v>
+      <c r="E86" t="s">
+        <v>1169</v>
       </c>
       <c r="F86" t="s">
         <v>700</v>
@@ -6157,7 +7071,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -6170,8 +7084,8 @@
       <c r="D87" t="s">
         <v>674</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>687</v>
+      <c r="E87" t="s">
+        <v>1170</v>
       </c>
       <c r="F87" t="s">
         <v>701</v>
@@ -6186,7 +7100,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -6199,8 +7113,8 @@
       <c r="D88" t="s">
         <v>682</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>687</v>
+      <c r="E88" t="s">
+        <v>1171</v>
       </c>
       <c r="F88" t="s">
         <v>702</v>
@@ -6215,7 +7129,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -6228,8 +7142,8 @@
       <c r="D89" t="s">
         <v>670</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>687</v>
+      <c r="E89" t="s">
+        <v>1172</v>
       </c>
       <c r="F89" t="s">
         <v>703</v>
@@ -6244,7 +7158,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -6257,8 +7171,8 @@
       <c r="D90" t="s">
         <v>686</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>687</v>
+      <c r="E90" t="s">
+        <v>1173</v>
       </c>
       <c r="F90" t="s">
         <v>704</v>
@@ -6273,7 +7187,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -6286,8 +7200,8 @@
       <c r="D91" t="s">
         <v>673</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>687</v>
+      <c r="E91" t="s">
+        <v>1174</v>
       </c>
       <c r="F91" t="s">
         <v>705</v>
@@ -6302,7 +7216,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -6315,8 +7229,8 @@
       <c r="D92" t="s">
         <v>677</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>687</v>
+      <c r="E92" t="s">
+        <v>1175</v>
       </c>
       <c r="F92" t="s">
         <v>706</v>
@@ -6331,7 +7245,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -6339,13 +7253,13 @@
         <v>430</v>
       </c>
       <c r="C93">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="D93" t="s">
         <v>674</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>687</v>
+      <c r="E93" t="s">
+        <v>1176</v>
       </c>
       <c r="F93" t="s">
         <v>707</v>
@@ -6360,7 +7274,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -6373,8 +7287,8 @@
       <c r="D94" t="s">
         <v>680</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>687</v>
+      <c r="E94" t="s">
+        <v>1177</v>
       </c>
       <c r="F94" t="s">
         <v>708</v>
@@ -6389,7 +7303,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -6397,13 +7311,13 @@
         <v>432</v>
       </c>
       <c r="C95">
-        <v>89.45999999999999</v>
+        <v>89.46</v>
       </c>
       <c r="D95" t="s">
         <v>672</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>687</v>
+      <c r="E95" t="s">
+        <v>1178</v>
       </c>
       <c r="F95" t="s">
         <v>709</v>
@@ -6418,7 +7332,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -6431,8 +7345,8 @@
       <c r="D96" t="s">
         <v>672</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>687</v>
+      <c r="E96" t="s">
+        <v>1179</v>
       </c>
       <c r="F96" t="s">
         <v>710</v>
@@ -6447,7 +7361,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -6460,8 +7374,8 @@
       <c r="D97" t="s">
         <v>680</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>687</v>
+      <c r="E97" t="s">
+        <v>1180</v>
       </c>
       <c r="F97" t="s">
         <v>711</v>
@@ -6476,7 +7390,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -6489,8 +7403,8 @@
       <c r="D98" t="s">
         <v>680</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>687</v>
+      <c r="E98" t="s">
+        <v>1181</v>
       </c>
       <c r="F98" t="s">
         <v>706</v>
@@ -6505,7 +7419,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -6518,8 +7432,8 @@
       <c r="D99" t="s">
         <v>683</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>687</v>
+      <c r="E99" t="s">
+        <v>1182</v>
       </c>
       <c r="F99" t="s">
         <v>707</v>
@@ -6534,7 +7448,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -6547,8 +7461,8 @@
       <c r="D100" t="s">
         <v>676</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>687</v>
+      <c r="E100" t="s">
+        <v>1183</v>
       </c>
       <c r="F100" t="s">
         <v>708</v>
@@ -6563,7 +7477,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -6576,8 +7490,8 @@
       <c r="D101" t="s">
         <v>674</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>687</v>
+      <c r="E101" t="s">
+        <v>1184</v>
       </c>
       <c r="F101" t="s">
         <v>709</v>
@@ -6592,7 +7506,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -6605,8 +7519,8 @@
       <c r="D102" t="s">
         <v>680</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>687</v>
+      <c r="E102" t="s">
+        <v>1185</v>
       </c>
       <c r="F102" t="s">
         <v>710</v>
@@ -6621,7 +7535,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>110</v>
       </c>
@@ -6634,8 +7548,8 @@
       <c r="D103" t="s">
         <v>680</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>687</v>
+      <c r="E103" t="s">
+        <v>1186</v>
       </c>
       <c r="F103" t="s">
         <v>711</v>
@@ -6650,7 +7564,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>111</v>
       </c>
@@ -6663,8 +7577,8 @@
       <c r="D104" t="s">
         <v>678</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>687</v>
+      <c r="E104" t="s">
+        <v>1187</v>
       </c>
       <c r="F104" t="s">
         <v>706</v>
@@ -6679,7 +7593,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -6692,8 +7606,8 @@
       <c r="D105" t="s">
         <v>678</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>687</v>
+      <c r="E105" t="s">
+        <v>1188</v>
       </c>
       <c r="F105" t="s">
         <v>707</v>
@@ -6708,7 +7622,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -6721,8 +7635,8 @@
       <c r="D106" t="s">
         <v>671</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>687</v>
+      <c r="E106" t="s">
+        <v>1189</v>
       </c>
       <c r="F106" t="s">
         <v>708</v>
@@ -6737,7 +7651,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -6750,8 +7664,8 @@
       <c r="D107" t="s">
         <v>672</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>687</v>
+      <c r="E107" t="s">
+        <v>1178</v>
       </c>
       <c r="F107" t="s">
         <v>709</v>
@@ -6766,7 +7680,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -6779,8 +7693,8 @@
       <c r="D108" t="s">
         <v>680</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>687</v>
+      <c r="E108" t="s">
+        <v>1190</v>
       </c>
       <c r="F108" t="s">
         <v>710</v>
@@ -6795,7 +7709,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -6808,8 +7722,8 @@
       <c r="D109" t="s">
         <v>678</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>687</v>
+      <c r="E109" t="s">
+        <v>1191</v>
       </c>
       <c r="F109" t="s">
         <v>711</v>
@@ -6824,7 +7738,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -6837,8 +7751,8 @@
       <c r="D110" t="s">
         <v>675</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>687</v>
+      <c r="E110" t="s">
+        <v>1192</v>
       </c>
       <c r="F110" t="s">
         <v>706</v>
@@ -6853,7 +7767,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>118</v>
       </c>
@@ -6861,13 +7775,13 @@
         <v>448</v>
       </c>
       <c r="C111">
-        <v>277.35</v>
+        <v>277.35000000000002</v>
       </c>
       <c r="D111" t="s">
         <v>673</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>687</v>
+      <c r="E111" t="s">
+        <v>1193</v>
       </c>
       <c r="F111" t="s">
         <v>707</v>
@@ -6882,7 +7796,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -6895,8 +7809,8 @@
       <c r="D112" t="s">
         <v>681</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>687</v>
+      <c r="E112" t="s">
+        <v>1194</v>
       </c>
       <c r="F112" t="s">
         <v>708</v>
@@ -6911,7 +7825,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -6924,8 +7838,8 @@
       <c r="D113" t="s">
         <v>671</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>687</v>
+      <c r="E113" t="s">
+        <v>1195</v>
       </c>
       <c r="F113" t="s">
         <v>709</v>
@@ -6940,7 +7854,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -6953,8 +7867,8 @@
       <c r="D114" t="s">
         <v>669</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>687</v>
+      <c r="E114" t="s">
+        <v>1196</v>
       </c>
       <c r="F114" t="s">
         <v>710</v>
@@ -6969,7 +7883,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -6977,13 +7891,13 @@
         <v>452</v>
       </c>
       <c r="C115">
-        <v>309.04</v>
+        <v>309.04000000000002</v>
       </c>
       <c r="D115" t="s">
         <v>686</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>687</v>
+      <c r="E115" t="s">
+        <v>1196</v>
       </c>
       <c r="F115" t="s">
         <v>711</v>
@@ -6998,7 +7912,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -7011,8 +7925,8 @@
       <c r="D116" t="s">
         <v>678</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>687</v>
+      <c r="E116" t="s">
+        <v>1197</v>
       </c>
       <c r="F116" t="s">
         <v>706</v>
@@ -7027,7 +7941,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>124</v>
       </c>
@@ -7040,8 +7954,8 @@
       <c r="D117" t="s">
         <v>682</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>687</v>
+      <c r="E117" t="s">
+        <v>1198</v>
       </c>
       <c r="F117" t="s">
         <v>707</v>
@@ -7056,7 +7970,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -7069,8 +7983,8 @@
       <c r="D118" t="s">
         <v>679</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>687</v>
+      <c r="E118" t="s">
+        <v>1199</v>
       </c>
       <c r="F118" t="s">
         <v>708</v>
@@ -7085,7 +7999,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -7098,8 +8012,8 @@
       <c r="D119" t="s">
         <v>686</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>687</v>
+      <c r="E119" t="s">
+        <v>1200</v>
       </c>
       <c r="F119" t="s">
         <v>709</v>
@@ -7114,7 +8028,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -7127,8 +8041,8 @@
       <c r="D120" t="s">
         <v>686</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>687</v>
+      <c r="E120" t="s">
+        <v>1201</v>
       </c>
       <c r="F120" t="s">
         <v>710</v>
@@ -7143,7 +8057,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -7156,8 +8070,8 @@
       <c r="D121" t="s">
         <v>672</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>687</v>
+      <c r="E121" t="s">
+        <v>1202</v>
       </c>
       <c r="F121" t="s">
         <v>711</v>
@@ -7172,7 +8086,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>129</v>
       </c>
@@ -7185,8 +8099,8 @@
       <c r="D122" t="s">
         <v>678</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>687</v>
+      <c r="E122" t="s">
+        <v>1203</v>
       </c>
       <c r="F122" t="s">
         <v>712</v>
@@ -7201,7 +8115,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -7209,13 +8123,13 @@
         <v>460</v>
       </c>
       <c r="C123">
-        <v>66.20999999999999</v>
+        <v>66.209999999999994</v>
       </c>
       <c r="D123" t="s">
         <v>673</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>687</v>
+      <c r="E123" t="s">
+        <v>1204</v>
       </c>
       <c r="F123" t="s">
         <v>713</v>
@@ -7230,7 +8144,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>131</v>
       </c>
@@ -7238,13 +8152,13 @@
         <v>461</v>
       </c>
       <c r="C124">
-        <v>83.40000000000001</v>
+        <v>83.4</v>
       </c>
       <c r="D124" t="s">
         <v>678</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>687</v>
+      <c r="E124" t="s">
+        <v>1205</v>
       </c>
       <c r="F124" t="s">
         <v>714</v>
@@ -7259,7 +8173,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -7272,8 +8186,8 @@
       <c r="D125" t="s">
         <v>669</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>687</v>
+      <c r="E125" t="s">
+        <v>1206</v>
       </c>
       <c r="F125" t="s">
         <v>715</v>
@@ -7288,7 +8202,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>133</v>
       </c>
@@ -7301,8 +8215,8 @@
       <c r="D126" t="s">
         <v>686</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>687</v>
+      <c r="E126" t="s">
+        <v>1207</v>
       </c>
       <c r="F126" t="s">
         <v>716</v>
@@ -7317,7 +8231,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -7330,8 +8244,8 @@
       <c r="D127" t="s">
         <v>680</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>687</v>
+      <c r="E127" t="s">
+        <v>1208</v>
       </c>
       <c r="F127" t="s">
         <v>717</v>
@@ -7346,7 +8260,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>135</v>
       </c>
@@ -7359,8 +8273,8 @@
       <c r="D128" t="s">
         <v>674</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>687</v>
+      <c r="E128" t="s">
+        <v>1209</v>
       </c>
       <c r="F128" t="s">
         <v>712</v>
@@ -7375,7 +8289,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -7388,8 +8302,8 @@
       <c r="D129" t="s">
         <v>681</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>687</v>
+      <c r="E129" t="s">
+        <v>1210</v>
       </c>
       <c r="F129" t="s">
         <v>713</v>
@@ -7404,7 +8318,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>137</v>
       </c>
@@ -7417,8 +8331,8 @@
       <c r="D130" t="s">
         <v>673</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>687</v>
+      <c r="E130" t="s">
+        <v>1211</v>
       </c>
       <c r="F130" t="s">
         <v>714</v>
@@ -7433,7 +8347,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -7441,13 +8355,13 @@
         <v>468</v>
       </c>
       <c r="C131">
-        <v>154.77</v>
+        <v>154.77000000000001</v>
       </c>
       <c r="D131" t="s">
         <v>676</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>687</v>
+      <c r="E131" t="s">
+        <v>1212</v>
       </c>
       <c r="F131" t="s">
         <v>715</v>
@@ -7462,7 +8376,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>139</v>
       </c>
@@ -7475,8 +8389,8 @@
       <c r="D132" t="s">
         <v>671</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>687</v>
+      <c r="E132" t="s">
+        <v>1213</v>
       </c>
       <c r="F132" t="s">
         <v>716</v>
@@ -7491,7 +8405,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -7504,8 +8418,8 @@
       <c r="D133" t="s">
         <v>684</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>687</v>
+      <c r="E133" t="s">
+        <v>1214</v>
       </c>
       <c r="F133" t="s">
         <v>717</v>
@@ -7520,7 +8434,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -7533,8 +8447,8 @@
       <c r="D134" t="s">
         <v>681</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>687</v>
+      <c r="E134" t="s">
+        <v>1215</v>
       </c>
       <c r="F134" t="s">
         <v>712</v>
@@ -7549,7 +8463,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -7562,8 +8476,8 @@
       <c r="D135" t="s">
         <v>672</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>687</v>
+      <c r="E135" t="s">
+        <v>1216</v>
       </c>
       <c r="F135" t="s">
         <v>713</v>
@@ -7578,7 +8492,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>143</v>
       </c>
@@ -7591,8 +8505,8 @@
       <c r="D136" t="s">
         <v>681</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>687</v>
+      <c r="E136" t="s">
+        <v>1217</v>
       </c>
       <c r="F136" t="s">
         <v>714</v>
@@ -7607,7 +8521,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -7620,8 +8534,8 @@
       <c r="D137" t="s">
         <v>673</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>687</v>
+      <c r="E137" t="s">
+        <v>1218</v>
       </c>
       <c r="F137" t="s">
         <v>715</v>
@@ -7636,7 +8550,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>145</v>
       </c>
@@ -7649,8 +8563,8 @@
       <c r="D138" t="s">
         <v>671</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>687</v>
+      <c r="E138" t="s">
+        <v>1219</v>
       </c>
       <c r="F138" t="s">
         <v>716</v>
@@ -7665,7 +8579,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -7678,8 +8592,8 @@
       <c r="D139" t="s">
         <v>682</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>687</v>
+      <c r="E139" t="s">
+        <v>1219</v>
       </c>
       <c r="F139" t="s">
         <v>717</v>
@@ -7694,7 +8608,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -7707,8 +8621,8 @@
       <c r="D140" t="s">
         <v>676</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>687</v>
+      <c r="E140" t="s">
+        <v>1220</v>
       </c>
       <c r="F140" t="s">
         <v>712</v>
@@ -7723,7 +8637,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>148</v>
       </c>
@@ -7731,13 +8645,13 @@
         <v>478</v>
       </c>
       <c r="C141">
-        <v>268.54</v>
+        <v>268.54000000000002</v>
       </c>
       <c r="D141" t="s">
         <v>677</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>687</v>
+      <c r="E141" t="s">
+        <v>1221</v>
       </c>
       <c r="F141" t="s">
         <v>713</v>
@@ -7752,7 +8666,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -7765,8 +8679,8 @@
       <c r="D142" t="s">
         <v>672</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>687</v>
+      <c r="E142" t="s">
+        <v>1222</v>
       </c>
       <c r="F142" t="s">
         <v>714</v>
@@ -7781,7 +8695,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -7789,13 +8703,13 @@
         <v>480</v>
       </c>
       <c r="C143">
-        <v>298.78</v>
+        <v>298.77999999999997</v>
       </c>
       <c r="D143" t="s">
         <v>683</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>687</v>
+      <c r="E143" t="s">
+        <v>1223</v>
       </c>
       <c r="F143" t="s">
         <v>715</v>
@@ -7810,7 +8724,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -7823,8 +8737,8 @@
       <c r="D144" t="s">
         <v>684</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>687</v>
+      <c r="E144" t="s">
+        <v>1224</v>
       </c>
       <c r="F144" t="s">
         <v>716</v>
@@ -7839,7 +8753,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -7852,8 +8766,8 @@
       <c r="D145" t="s">
         <v>675</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>687</v>
+      <c r="E145" t="s">
+        <v>1225</v>
       </c>
       <c r="F145" t="s">
         <v>717</v>
@@ -7868,7 +8782,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -7881,8 +8795,8 @@
       <c r="D146" t="s">
         <v>669</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>687</v>
+      <c r="E146" t="s">
+        <v>1226</v>
       </c>
       <c r="F146" t="s">
         <v>712</v>
@@ -7897,7 +8811,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>154</v>
       </c>
@@ -7910,8 +8824,8 @@
       <c r="D147" t="s">
         <v>674</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>687</v>
+      <c r="E147" t="s">
+        <v>1227</v>
       </c>
       <c r="F147" t="s">
         <v>713</v>
@@ -7926,7 +8840,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -7939,8 +8853,8 @@
       <c r="D148" t="s">
         <v>678</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>687</v>
+      <c r="E148" t="s">
+        <v>1228</v>
       </c>
       <c r="F148" t="s">
         <v>714</v>
@@ -7955,7 +8869,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -7968,8 +8882,8 @@
       <c r="D149" t="s">
         <v>673</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>687</v>
+      <c r="E149" t="s">
+        <v>1229</v>
       </c>
       <c r="F149" t="s">
         <v>715</v>
@@ -7984,7 +8898,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -7997,8 +8911,8 @@
       <c r="D150" t="s">
         <v>684</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>687</v>
+      <c r="E150" s="4" t="s">
+        <v>1230</v>
       </c>
       <c r="F150" t="s">
         <v>716</v>
@@ -8013,7 +8927,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -8026,8 +8940,8 @@
       <c r="D151" t="s">
         <v>672</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>687</v>
+      <c r="E151" s="3" t="s">
+        <v>1231</v>
       </c>
       <c r="F151" t="s">
         <v>717</v>
@@ -8042,7 +8956,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>159</v>
       </c>
@@ -8055,8 +8969,8 @@
       <c r="D152" t="s">
         <v>686</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>687</v>
+      <c r="E152" s="3" t="s">
+        <v>1232</v>
       </c>
       <c r="F152" t="s">
         <v>718</v>
@@ -8071,7 +8985,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>160</v>
       </c>
@@ -8084,8 +8998,8 @@
       <c r="D153" t="s">
         <v>669</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>687</v>
+      <c r="E153" s="3" t="s">
+        <v>1233</v>
       </c>
       <c r="F153" t="s">
         <v>719</v>
@@ -8100,7 +9014,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -8113,8 +9027,8 @@
       <c r="D154" t="s">
         <v>672</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>687</v>
+      <c r="E154" s="3" t="s">
+        <v>1234</v>
       </c>
       <c r="F154" t="s">
         <v>720</v>
@@ -8129,7 +9043,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -8142,8 +9056,8 @@
       <c r="D155" t="s">
         <v>676</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>687</v>
+      <c r="E155" s="4" t="s">
+        <v>1235</v>
       </c>
       <c r="F155" t="s">
         <v>721</v>
@@ -8158,7 +9072,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -8171,8 +9085,8 @@
       <c r="D156" t="s">
         <v>678</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>687</v>
+      <c r="E156" s="3" t="s">
+        <v>1236</v>
       </c>
       <c r="F156" t="s">
         <v>722</v>
@@ -8187,7 +9101,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -8200,8 +9114,8 @@
       <c r="D157" t="s">
         <v>681</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>687</v>
+      <c r="E157" s="3" t="s">
+        <v>1237</v>
       </c>
       <c r="F157" t="s">
         <v>723</v>
@@ -8216,7 +9130,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -8229,8 +9143,8 @@
       <c r="D158" t="s">
         <v>676</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>687</v>
+      <c r="E158" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="F158" t="s">
         <v>718</v>
@@ -8245,7 +9159,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -8258,8 +9172,8 @@
       <c r="D159" t="s">
         <v>674</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>687</v>
+      <c r="E159" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="F159" t="s">
         <v>719</v>
@@ -8274,7 +9188,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -8287,8 +9201,8 @@
       <c r="D160" t="s">
         <v>671</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>687</v>
+      <c r="E160" s="3" t="s">
+        <v>1240</v>
       </c>
       <c r="F160" t="s">
         <v>720</v>
@@ -8303,7 +9217,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -8311,13 +9225,13 @@
         <v>498</v>
       </c>
       <c r="C161">
-        <v>156.55</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="D161" t="s">
         <v>682</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>687</v>
+      <c r="E161" s="4" t="s">
+        <v>1241</v>
       </c>
       <c r="F161" t="s">
         <v>721</v>
@@ -8332,7 +9246,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -8345,8 +9259,8 @@
       <c r="D162" t="s">
         <v>673</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>687</v>
+      <c r="E162" s="4" t="s">
+        <v>1236</v>
       </c>
       <c r="F162" t="s">
         <v>722</v>
@@ -8361,7 +9275,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>170</v>
       </c>
@@ -8374,8 +9288,8 @@
       <c r="D163" t="s">
         <v>677</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>687</v>
+      <c r="E163" s="4" t="s">
+        <v>1242</v>
       </c>
       <c r="F163" t="s">
         <v>723</v>
@@ -8390,7 +9304,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -8403,8 +9317,8 @@
       <c r="D164" t="s">
         <v>681</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>687</v>
+      <c r="E164" s="3" t="s">
+        <v>1243</v>
       </c>
       <c r="F164" t="s">
         <v>718</v>
@@ -8419,7 +9333,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -8432,8 +9346,8 @@
       <c r="D165" t="s">
         <v>684</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>687</v>
+      <c r="E165" s="3" t="s">
+        <v>1244</v>
       </c>
       <c r="F165" t="s">
         <v>719</v>
@@ -8448,7 +9362,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>173</v>
       </c>
@@ -8461,8 +9375,8 @@
       <c r="D166" t="s">
         <v>683</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>687</v>
+      <c r="E166" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="F166" t="s">
         <v>720</v>
@@ -8477,7 +9391,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>174</v>
       </c>
@@ -8490,8 +9404,8 @@
       <c r="D167" t="s">
         <v>682</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>687</v>
+      <c r="E167" t="s">
+        <v>1246</v>
       </c>
       <c r="F167" t="s">
         <v>721</v>
@@ -8506,7 +9420,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -8519,8 +9433,8 @@
       <c r="D168" t="s">
         <v>674</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>687</v>
+      <c r="E168" s="4" t="s">
+        <v>1236</v>
       </c>
       <c r="F168" t="s">
         <v>722</v>
@@ -8535,7 +9449,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -8548,8 +9462,8 @@
       <c r="D169" t="s">
         <v>686</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>687</v>
+      <c r="E169" s="3" t="s">
+        <v>1237</v>
       </c>
       <c r="F169" t="s">
         <v>723</v>
@@ -8564,7 +9478,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>177</v>
       </c>
@@ -8577,8 +9491,8 @@
       <c r="D170" t="s">
         <v>672</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>687</v>
+      <c r="E170" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="F170" t="s">
         <v>718</v>
@@ -8593,7 +9507,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>178</v>
       </c>
@@ -8601,13 +9515,13 @@
         <v>508</v>
       </c>
       <c r="C171">
-        <v>274.16</v>
+        <v>274.16000000000003</v>
       </c>
       <c r="D171" t="s">
         <v>670</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>687</v>
+      <c r="E171" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="F171" t="s">
         <v>719</v>
@@ -8622,7 +9536,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>179</v>
       </c>
@@ -8635,8 +9549,8 @@
       <c r="D172" t="s">
         <v>672</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>687</v>
+      <c r="E172" s="3" t="s">
+        <v>1240</v>
       </c>
       <c r="F172" t="s">
         <v>720</v>
@@ -8651,7 +9565,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -8664,8 +9578,8 @@
       <c r="D173" t="s">
         <v>673</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>687</v>
+      <c r="E173" t="s">
+        <v>1246</v>
       </c>
       <c r="F173" t="s">
         <v>721</v>
@@ -8680,7 +9594,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>181</v>
       </c>
@@ -8693,8 +9607,8 @@
       <c r="D174" t="s">
         <v>678</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>687</v>
+      <c r="E174" s="4" t="s">
+        <v>1236</v>
       </c>
       <c r="F174" t="s">
         <v>722</v>
@@ -8709,7 +9623,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>182</v>
       </c>
@@ -8717,13 +9631,13 @@
         <v>512</v>
       </c>
       <c r="C175">
-        <v>320.65</v>
+        <v>320.64999999999998</v>
       </c>
       <c r="D175" t="s">
         <v>672</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>687</v>
+      <c r="E175" s="4" t="s">
+        <v>1242</v>
       </c>
       <c r="F175" t="s">
         <v>723</v>
@@ -8738,7 +9652,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>183</v>
       </c>
@@ -8751,8 +9665,8 @@
       <c r="D176" t="s">
         <v>682</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>687</v>
+      <c r="E176" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="F176" t="s">
         <v>718</v>
@@ -8767,7 +9681,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -8780,8 +9694,8 @@
       <c r="D177" t="s">
         <v>672</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>687</v>
+      <c r="E177" s="3" t="s">
+        <v>1244</v>
       </c>
       <c r="F177" t="s">
         <v>719</v>
@@ -8796,7 +9710,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>185</v>
       </c>
@@ -8809,8 +9723,8 @@
       <c r="D178" t="s">
         <v>670</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>687</v>
+      <c r="E178" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="F178" t="s">
         <v>720</v>
@@ -8825,7 +9739,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>186</v>
       </c>
@@ -8838,8 +9752,8 @@
       <c r="D179" t="s">
         <v>684</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>687</v>
+      <c r="E179" t="s">
+        <v>1246</v>
       </c>
       <c r="F179" t="s">
         <v>721</v>
@@ -8854,7 +9768,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>187</v>
       </c>
@@ -8867,8 +9781,8 @@
       <c r="D180" t="s">
         <v>680</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>687</v>
+      <c r="E180" s="4" t="s">
+        <v>1236</v>
       </c>
       <c r="F180" t="s">
         <v>722</v>
@@ -8883,7 +9797,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>188</v>
       </c>
@@ -8896,8 +9810,8 @@
       <c r="D181" t="s">
         <v>678</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>687</v>
+      <c r="E181" s="3" t="s">
+        <v>1237</v>
       </c>
       <c r="F181" t="s">
         <v>723</v>
@@ -8912,7 +9826,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>189</v>
       </c>
@@ -8925,8 +9839,8 @@
       <c r="D182" t="s">
         <v>672</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>687</v>
+      <c r="E182" t="s">
+        <v>1247</v>
       </c>
       <c r="F182" t="s">
         <v>724</v>
@@ -8941,7 +9855,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>190</v>
       </c>
@@ -8949,13 +9863,13 @@
         <v>520</v>
       </c>
       <c r="C183">
-        <v>66.48999999999999</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="D183" t="s">
         <v>678</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>687</v>
+      <c r="E183" t="s">
+        <v>1248</v>
       </c>
       <c r="F183" t="s">
         <v>725</v>
@@ -8970,7 +9884,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>191</v>
       </c>
@@ -8983,8 +9897,8 @@
       <c r="D184" t="s">
         <v>679</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>687</v>
+      <c r="E184" t="s">
+        <v>1249</v>
       </c>
       <c r="F184" t="s">
         <v>726</v>
@@ -8999,7 +9913,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>192</v>
       </c>
@@ -9007,13 +9921,13 @@
         <v>522</v>
       </c>
       <c r="C185">
-        <v>88.09999999999999</v>
+        <v>88.1</v>
       </c>
       <c r="D185" t="s">
         <v>684</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>687</v>
+      <c r="E185" t="s">
+        <v>1250</v>
       </c>
       <c r="F185" t="s">
         <v>727</v>
@@ -9028,7 +9942,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>193</v>
       </c>
@@ -9041,8 +9955,8 @@
       <c r="D186" t="s">
         <v>673</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>687</v>
+      <c r="E186" t="s">
+        <v>1251</v>
       </c>
       <c r="F186" t="s">
         <v>728</v>
@@ -9057,7 +9971,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>194</v>
       </c>
@@ -9070,8 +9984,8 @@
       <c r="D187" t="s">
         <v>672</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>687</v>
+      <c r="E187" t="s">
+        <v>1252</v>
       </c>
       <c r="F187" t="s">
         <v>729</v>
@@ -9086,7 +10000,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>195</v>
       </c>
@@ -9094,13 +10008,13 @@
         <v>525</v>
       </c>
       <c r="C188">
-        <v>131.86</v>
+        <v>131.86000000000001</v>
       </c>
       <c r="D188" t="s">
         <v>686</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>687</v>
+      <c r="E188" t="s">
+        <v>1247</v>
       </c>
       <c r="F188" t="s">
         <v>724</v>
@@ -9115,7 +10029,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>196</v>
       </c>
@@ -9123,13 +10037,13 @@
         <v>526</v>
       </c>
       <c r="C189">
-        <v>133.83</v>
+        <v>133.83000000000001</v>
       </c>
       <c r="D189" t="s">
         <v>683</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>687</v>
+      <c r="E189" t="s">
+        <v>1253</v>
       </c>
       <c r="F189" t="s">
         <v>725</v>
@@ -9144,7 +10058,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>197</v>
       </c>
@@ -9152,13 +10066,13 @@
         <v>527</v>
       </c>
       <c r="C190">
-        <v>144.27</v>
+        <v>144.27000000000001</v>
       </c>
       <c r="D190" t="s">
         <v>671</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>687</v>
+      <c r="E190" t="s">
+        <v>1254</v>
       </c>
       <c r="F190" t="s">
         <v>726</v>
@@ -9173,7 +10087,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>198</v>
       </c>
@@ -9186,8 +10100,8 @@
       <c r="D191" t="s">
         <v>680</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>687</v>
+      <c r="E191" t="s">
+        <v>1255</v>
       </c>
       <c r="F191" t="s">
         <v>727</v>
@@ -9202,7 +10116,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>199</v>
       </c>
@@ -9215,8 +10129,8 @@
       <c r="D192" t="s">
         <v>678</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>687</v>
+      <c r="E192" t="s">
+        <v>1256</v>
       </c>
       <c r="F192" t="s">
         <v>728</v>
@@ -9231,7 +10145,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -9244,8 +10158,8 @@
       <c r="D193" t="s">
         <v>682</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>687</v>
+      <c r="E193" t="s">
+        <v>1257</v>
       </c>
       <c r="F193" t="s">
         <v>729</v>
@@ -9260,7 +10174,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>201</v>
       </c>
@@ -9273,8 +10187,8 @@
       <c r="D194" t="s">
         <v>678</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>687</v>
+      <c r="E194" t="s">
+        <v>1258</v>
       </c>
       <c r="F194" t="s">
         <v>724</v>
@@ -9289,7 +10203,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>202</v>
       </c>
@@ -9302,8 +10216,8 @@
       <c r="D195" t="s">
         <v>675</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>687</v>
+      <c r="E195" t="s">
+        <v>1259</v>
       </c>
       <c r="F195" t="s">
         <v>725</v>
@@ -9318,7 +10232,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>203</v>
       </c>
@@ -9331,8 +10245,8 @@
       <c r="D196" t="s">
         <v>678</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>687</v>
+      <c r="E196" t="s">
+        <v>1260</v>
       </c>
       <c r="F196" t="s">
         <v>726</v>
@@ -9347,7 +10261,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>204</v>
       </c>
@@ -9360,8 +10274,8 @@
       <c r="D197" t="s">
         <v>683</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>687</v>
+      <c r="E197" t="s">
+        <v>1261</v>
       </c>
       <c r="F197" t="s">
         <v>727</v>
@@ -9376,7 +10290,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>205</v>
       </c>
@@ -9389,8 +10303,8 @@
       <c r="D198" t="s">
         <v>672</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>687</v>
+      <c r="E198" t="s">
+        <v>1262</v>
       </c>
       <c r="F198" t="s">
         <v>728</v>
@@ -9405,7 +10319,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>206</v>
       </c>
@@ -9418,8 +10332,8 @@
       <c r="D199" t="s">
         <v>685</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>687</v>
+      <c r="E199" t="s">
+        <v>1263</v>
       </c>
       <c r="F199" t="s">
         <v>729</v>
@@ -9434,7 +10348,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>207</v>
       </c>
@@ -9447,8 +10361,8 @@
       <c r="D200" t="s">
         <v>675</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>687</v>
+      <c r="E200" t="s">
+        <v>1264</v>
       </c>
       <c r="F200" t="s">
         <v>724</v>
@@ -9463,7 +10377,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>208</v>
       </c>
@@ -9471,13 +10385,13 @@
         <v>538</v>
       </c>
       <c r="C201">
-        <v>277.15</v>
+        <v>277.14999999999998</v>
       </c>
       <c r="D201" t="s">
         <v>679</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>687</v>
+      <c r="E201" t="s">
+        <v>1265</v>
       </c>
       <c r="F201" t="s">
         <v>725</v>
@@ -9492,7 +10406,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -9500,13 +10414,13 @@
         <v>539</v>
       </c>
       <c r="C202">
-        <v>297.22</v>
+        <v>297.22000000000003</v>
       </c>
       <c r="D202" t="s">
         <v>680</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>687</v>
+      <c r="E202" t="s">
+        <v>1266</v>
       </c>
       <c r="F202" t="s">
         <v>726</v>
@@ -9521,7 +10435,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>210</v>
       </c>
@@ -9529,13 +10443,13 @@
         <v>540</v>
       </c>
       <c r="C203">
-        <v>303.29</v>
+        <v>303.29000000000002</v>
       </c>
       <c r="D203" t="s">
         <v>677</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>687</v>
+      <c r="E203" t="s">
+        <v>1267</v>
       </c>
       <c r="F203" t="s">
         <v>727</v>
@@ -9550,7 +10464,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>211</v>
       </c>
@@ -9558,13 +10472,13 @@
         <v>541</v>
       </c>
       <c r="C204">
-        <v>320.54</v>
+        <v>320.54000000000002</v>
       </c>
       <c r="D204" t="s">
         <v>672</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>687</v>
+      <c r="E204" t="s">
+        <v>1262</v>
       </c>
       <c r="F204" t="s">
         <v>728</v>
@@ -9579,7 +10493,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>212</v>
       </c>
@@ -9592,8 +10506,8 @@
       <c r="D205" t="s">
         <v>677</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>687</v>
+      <c r="E205" t="s">
+        <v>1268</v>
       </c>
       <c r="F205" t="s">
         <v>729</v>
@@ -9608,7 +10522,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>213</v>
       </c>
@@ -9621,8 +10535,8 @@
       <c r="D206" t="s">
         <v>669</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>687</v>
+      <c r="E206" t="s">
+        <v>1269</v>
       </c>
       <c r="F206" t="s">
         <v>724</v>
@@ -9637,7 +10551,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>214</v>
       </c>
@@ -9650,8 +10564,8 @@
       <c r="D207" t="s">
         <v>673</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>687</v>
+      <c r="E207" t="s">
+        <v>1270</v>
       </c>
       <c r="F207" t="s">
         <v>725</v>
@@ -9666,7 +10580,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>215</v>
       </c>
@@ -9679,8 +10593,8 @@
       <c r="D208" t="s">
         <v>686</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>687</v>
+      <c r="E208" t="s">
+        <v>1271</v>
       </c>
       <c r="F208" t="s">
         <v>726</v>
@@ -9695,7 +10609,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>216</v>
       </c>
@@ -9708,8 +10622,8 @@
       <c r="D209" t="s">
         <v>679</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>687</v>
+      <c r="E209" t="s">
+        <v>1261</v>
       </c>
       <c r="F209" t="s">
         <v>727</v>
@@ -9724,7 +10638,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>217</v>
       </c>
@@ -9737,8 +10651,8 @@
       <c r="D210" t="s">
         <v>675</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>687</v>
+      <c r="E210" t="s">
+        <v>1256</v>
       </c>
       <c r="F210" t="s">
         <v>728</v>
@@ -9753,7 +10667,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>218</v>
       </c>
@@ -9766,8 +10680,8 @@
       <c r="D211" t="s">
         <v>682</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>687</v>
+      <c r="E211" t="s">
+        <v>1263</v>
       </c>
       <c r="F211" t="s">
         <v>729</v>
@@ -9782,7 +10696,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>219</v>
       </c>
@@ -9795,8 +10709,8 @@
       <c r="D212" t="s">
         <v>682</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>687</v>
+      <c r="E212" t="s">
+        <v>1272</v>
       </c>
       <c r="F212" t="s">
         <v>730</v>
@@ -9811,7 +10725,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>220</v>
       </c>
@@ -9824,8 +10738,8 @@
       <c r="D213" t="s">
         <v>672</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>687</v>
+      <c r="E213" t="s">
+        <v>1273</v>
       </c>
       <c r="F213" t="s">
         <v>731</v>
@@ -9840,7 +10754,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>221</v>
       </c>
@@ -9853,8 +10767,8 @@
       <c r="D214" t="s">
         <v>682</v>
       </c>
-      <c r="E214" s="2" t="s">
-        <v>687</v>
+      <c r="E214" t="s">
+        <v>1274</v>
       </c>
       <c r="F214" t="s">
         <v>732</v>
@@ -9869,7 +10783,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>222</v>
       </c>
@@ -9882,8 +10796,8 @@
       <c r="D215" t="s">
         <v>673</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>687</v>
+      <c r="E215" t="s">
+        <v>1275</v>
       </c>
       <c r="F215" t="s">
         <v>733</v>
@@ -9898,7 +10812,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>223</v>
       </c>
@@ -9911,8 +10825,8 @@
       <c r="D216" t="s">
         <v>681</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>687</v>
+      <c r="E216" t="s">
+        <v>1276</v>
       </c>
       <c r="F216" t="s">
         <v>734</v>
@@ -9927,7 +10841,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -9940,8 +10854,8 @@
       <c r="D217" t="s">
         <v>672</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>687</v>
+      <c r="E217" t="s">
+        <v>1277</v>
       </c>
       <c r="F217" t="s">
         <v>735</v>
@@ -9956,7 +10870,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>225</v>
       </c>
@@ -9969,8 +10883,8 @@
       <c r="D218" t="s">
         <v>685</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>687</v>
+      <c r="E218" t="s">
+        <v>1278</v>
       </c>
       <c r="F218" t="s">
         <v>730</v>
@@ -9985,7 +10899,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>226</v>
       </c>
@@ -9993,13 +10907,13 @@
         <v>556</v>
       </c>
       <c r="C219">
-        <v>134.17</v>
+        <v>134.16999999999999</v>
       </c>
       <c r="D219" t="s">
         <v>675</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>687</v>
+      <c r="E219" t="s">
+        <v>1279</v>
       </c>
       <c r="F219" t="s">
         <v>731</v>
@@ -10014,7 +10928,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>227</v>
       </c>
@@ -10022,13 +10936,13 @@
         <v>557</v>
       </c>
       <c r="C220">
-        <v>154.52</v>
+        <v>154.52000000000001</v>
       </c>
       <c r="D220" t="s">
         <v>669</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>687</v>
+      <c r="E220" t="s">
+        <v>1280</v>
       </c>
       <c r="F220" t="s">
         <v>732</v>
@@ -10043,7 +10957,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>228</v>
       </c>
@@ -10056,8 +10970,8 @@
       <c r="D221" t="s">
         <v>686</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>687</v>
+      <c r="E221" t="s">
+        <v>1275</v>
       </c>
       <c r="F221" t="s">
         <v>733</v>
@@ -10072,7 +10986,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>229</v>
       </c>
@@ -10086,7 +11000,7 @@
         <v>674</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>687</v>
+        <v>1281</v>
       </c>
       <c r="F222" t="s">
         <v>734</v>
@@ -10101,7 +11015,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>230</v>
       </c>
@@ -10114,8 +11028,8 @@
       <c r="D223" t="s">
         <v>674</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>687</v>
+      <c r="E223" t="s">
+        <v>1282</v>
       </c>
       <c r="F223" t="s">
         <v>735</v>
@@ -10130,7 +11044,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>231</v>
       </c>
@@ -10143,8 +11057,8 @@
       <c r="D224" t="s">
         <v>672</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>687</v>
+      <c r="E224" t="s">
+        <v>1283</v>
       </c>
       <c r="F224" t="s">
         <v>730</v>
@@ -10159,7 +11073,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>232</v>
       </c>
@@ -10172,8 +11086,8 @@
       <c r="D225" t="s">
         <v>675</v>
       </c>
-      <c r="E225" s="2" t="s">
-        <v>687</v>
+      <c r="E225" t="s">
+        <v>1284</v>
       </c>
       <c r="F225" t="s">
         <v>731</v>
@@ -10188,7 +11102,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>233</v>
       </c>
@@ -10201,8 +11115,8 @@
       <c r="D226" t="s">
         <v>674</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>687</v>
+      <c r="E226" t="s">
+        <v>1285</v>
       </c>
       <c r="F226" t="s">
         <v>732</v>
@@ -10217,7 +11131,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>234</v>
       </c>
@@ -10230,8 +11144,8 @@
       <c r="D227" t="s">
         <v>685</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>687</v>
+      <c r="E227" t="s">
+        <v>1286</v>
       </c>
       <c r="F227" t="s">
         <v>733</v>
@@ -10246,7 +11160,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>235</v>
       </c>
@@ -10259,8 +11173,8 @@
       <c r="D228" t="s">
         <v>682</v>
       </c>
-      <c r="E228" s="2" t="s">
-        <v>687</v>
+      <c r="E228" t="s">
+        <v>1276</v>
       </c>
       <c r="F228" t="s">
         <v>734</v>
@@ -10275,7 +11189,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>236</v>
       </c>
@@ -10283,13 +11197,13 @@
         <v>566</v>
       </c>
       <c r="C229">
-        <v>258.54</v>
+        <v>258.54000000000002</v>
       </c>
       <c r="D229" t="s">
         <v>671</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>687</v>
+      <c r="E229" t="s">
+        <v>1287</v>
       </c>
       <c r="F229" t="s">
         <v>735</v>
@@ -10304,7 +11218,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>237</v>
       </c>
@@ -10312,13 +11226,13 @@
         <v>567</v>
       </c>
       <c r="C230">
-        <v>261.34</v>
+        <v>261.33999999999997</v>
       </c>
       <c r="D230" t="s">
         <v>683</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>687</v>
+      <c r="E230" t="s">
+        <v>1278</v>
       </c>
       <c r="F230" t="s">
         <v>730</v>
@@ -10333,7 +11247,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>238</v>
       </c>
@@ -10346,8 +11260,8 @@
       <c r="D231" t="s">
         <v>686</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>687</v>
+      <c r="E231" t="s">
+        <v>1284</v>
       </c>
       <c r="F231" t="s">
         <v>731</v>
@@ -10362,7 +11276,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>239</v>
       </c>
@@ -10375,8 +11289,8 @@
       <c r="D232" t="s">
         <v>675</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>687</v>
+      <c r="E232" t="s">
+        <v>1280</v>
       </c>
       <c r="F232" t="s">
         <v>732</v>
@@ -10391,7 +11305,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>240</v>
       </c>
@@ -10404,8 +11318,8 @@
       <c r="D233" t="s">
         <v>685</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>687</v>
+      <c r="E233" t="s">
+        <v>1288</v>
       </c>
       <c r="F233" t="s">
         <v>733</v>
@@ -10420,7 +11334,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>241</v>
       </c>
@@ -10428,13 +11342,13 @@
         <v>571</v>
       </c>
       <c r="C234">
-        <v>298.6</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="D234" t="s">
         <v>683</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>687</v>
+      <c r="E234" t="s">
+        <v>1289</v>
       </c>
       <c r="F234" t="s">
         <v>734</v>
@@ -10449,7 +11363,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>242</v>
       </c>
@@ -10462,8 +11376,8 @@
       <c r="D235" t="s">
         <v>677</v>
       </c>
-      <c r="E235" s="2" t="s">
-        <v>687</v>
+      <c r="E235" t="s">
+        <v>1290</v>
       </c>
       <c r="F235" t="s">
         <v>735</v>
@@ -10478,7 +11392,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>243</v>
       </c>
@@ -10491,8 +11405,8 @@
       <c r="D236" t="s">
         <v>670</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>687</v>
+      <c r="E236" t="s">
+        <v>1291</v>
       </c>
       <c r="F236" t="s">
         <v>730</v>
@@ -10507,7 +11421,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>244</v>
       </c>
@@ -10520,8 +11434,8 @@
       <c r="D237" t="s">
         <v>681</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>687</v>
+      <c r="E237" t="s">
+        <v>1284</v>
       </c>
       <c r="F237" t="s">
         <v>731</v>
@@ -10536,7 +11450,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>245</v>
       </c>
@@ -10549,8 +11463,8 @@
       <c r="D238" t="s">
         <v>686</v>
       </c>
-      <c r="E238" s="2" t="s">
-        <v>687</v>
+      <c r="E238" t="s">
+        <v>1280</v>
       </c>
       <c r="F238" t="s">
         <v>732</v>
@@ -10565,7 +11479,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>246</v>
       </c>
@@ -10578,8 +11492,8 @@
       <c r="D239" t="s">
         <v>678</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>687</v>
+      <c r="E239" t="s">
+        <v>1288</v>
       </c>
       <c r="F239" t="s">
         <v>733</v>
@@ -10594,7 +11508,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>247</v>
       </c>
@@ -10607,8 +11521,8 @@
       <c r="D240" t="s">
         <v>680</v>
       </c>
-      <c r="E240" s="2" t="s">
-        <v>687</v>
+      <c r="E240" t="s">
+        <v>1292</v>
       </c>
       <c r="F240" t="s">
         <v>734</v>
@@ -10623,7 +11537,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>248</v>
       </c>
@@ -10636,8 +11550,8 @@
       <c r="D241" t="s">
         <v>682</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>687</v>
+      <c r="E241" t="s">
+        <v>1293</v>
       </c>
       <c r="F241" t="s">
         <v>735</v>
@@ -10652,7 +11566,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>249</v>
       </c>
@@ -10665,8 +11579,8 @@
       <c r="D242" t="s">
         <v>678</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>687</v>
+      <c r="E242" t="s">
+        <v>1294</v>
       </c>
       <c r="F242" t="s">
         <v>736</v>
@@ -10681,7 +11595,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>250</v>
       </c>
@@ -10694,8 +11608,8 @@
       <c r="D243" t="s">
         <v>673</v>
       </c>
-      <c r="E243" s="2" t="s">
-        <v>687</v>
+      <c r="E243" t="s">
+        <v>1295</v>
       </c>
       <c r="F243" t="s">
         <v>737</v>
@@ -10710,7 +11624,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>251</v>
       </c>
@@ -10723,8 +11637,8 @@
       <c r="D244" t="s">
         <v>680</v>
       </c>
-      <c r="E244" s="2" t="s">
-        <v>687</v>
+      <c r="E244" t="s">
+        <v>1296</v>
       </c>
       <c r="F244" t="s">
         <v>738</v>
@@ -10739,7 +11653,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>252</v>
       </c>
@@ -10747,13 +11661,13 @@
         <v>582</v>
       </c>
       <c r="C245">
-        <v>94.06999999999999</v>
+        <v>94.07</v>
       </c>
       <c r="D245" t="s">
         <v>672</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>687</v>
+      <c r="E245" t="s">
+        <v>1297</v>
       </c>
       <c r="F245" t="s">
         <v>739</v>
@@ -10768,7 +11682,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>253</v>
       </c>
@@ -10781,8 +11695,8 @@
       <c r="D246" t="s">
         <v>670</v>
       </c>
-      <c r="E246" s="2" t="s">
-        <v>687</v>
+      <c r="E246" t="s">
+        <v>1298</v>
       </c>
       <c r="F246" t="s">
         <v>740</v>
@@ -10797,7 +11711,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>254</v>
       </c>
@@ -10810,8 +11724,8 @@
       <c r="D247" t="s">
         <v>682</v>
       </c>
-      <c r="E247" s="2" t="s">
-        <v>687</v>
+      <c r="E247" t="s">
+        <v>1299</v>
       </c>
       <c r="F247" t="s">
         <v>741</v>
@@ -10826,7 +11740,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>255</v>
       </c>
@@ -10839,8 +11753,8 @@
       <c r="D248" t="s">
         <v>677</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>687</v>
+      <c r="E248" t="s">
+        <v>1300</v>
       </c>
       <c r="F248" t="s">
         <v>736</v>
@@ -10855,7 +11769,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>256</v>
       </c>
@@ -10868,8 +11782,8 @@
       <c r="D249" t="s">
         <v>675</v>
       </c>
-      <c r="E249" s="2" t="s">
-        <v>687</v>
+      <c r="E249" t="s">
+        <v>1301</v>
       </c>
       <c r="F249" t="s">
         <v>737</v>
@@ -10884,7 +11798,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>257</v>
       </c>
@@ -10897,8 +11811,8 @@
       <c r="D250" t="s">
         <v>678</v>
       </c>
-      <c r="E250" s="2" t="s">
-        <v>687</v>
+      <c r="E250" t="s">
+        <v>1302</v>
       </c>
       <c r="F250" t="s">
         <v>738</v>
@@ -10913,7 +11827,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>258</v>
       </c>
@@ -10921,13 +11835,13 @@
         <v>588</v>
       </c>
       <c r="C251">
-        <v>156.33</v>
+        <v>156.33000000000001</v>
       </c>
       <c r="D251" t="s">
         <v>681</v>
       </c>
-      <c r="E251" s="2" t="s">
-        <v>687</v>
+      <c r="E251" t="s">
+        <v>1303</v>
       </c>
       <c r="F251" t="s">
         <v>739</v>
@@ -10942,7 +11856,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>259</v>
       </c>
@@ -10955,8 +11869,8 @@
       <c r="D252" t="s">
         <v>678</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>687</v>
+      <c r="E252" t="s">
+        <v>1304</v>
       </c>
       <c r="F252" t="s">
         <v>740</v>
@@ -10971,7 +11885,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>260</v>
       </c>
@@ -10984,8 +11898,8 @@
       <c r="D253" t="s">
         <v>672</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>687</v>
+      <c r="E253" t="s">
+        <v>1305</v>
       </c>
       <c r="F253" t="s">
         <v>741</v>
@@ -11000,7 +11914,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>261</v>
       </c>
@@ -11013,8 +11927,8 @@
       <c r="D254" t="s">
         <v>675</v>
       </c>
-      <c r="E254" s="2" t="s">
-        <v>687</v>
+      <c r="E254" t="s">
+        <v>1306</v>
       </c>
       <c r="F254" t="s">
         <v>736</v>
@@ -11029,7 +11943,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>262</v>
       </c>
@@ -11042,8 +11956,8 @@
       <c r="D255" t="s">
         <v>683</v>
       </c>
-      <c r="E255" s="2" t="s">
-        <v>687</v>
+      <c r="E255" t="s">
+        <v>1307</v>
       </c>
       <c r="F255" t="s">
         <v>737</v>
@@ -11058,7 +11972,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>263</v>
       </c>
@@ -11071,8 +11985,8 @@
       <c r="D256" t="s">
         <v>682</v>
       </c>
-      <c r="E256" s="2" t="s">
-        <v>687</v>
+      <c r="E256" t="s">
+        <v>1308</v>
       </c>
       <c r="F256" t="s">
         <v>738</v>
@@ -11087,7 +12001,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>264</v>
       </c>
@@ -11100,8 +12014,8 @@
       <c r="D257" t="s">
         <v>673</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>687</v>
+      <c r="E257" t="s">
+        <v>1309</v>
       </c>
       <c r="F257" t="s">
         <v>739</v>
@@ -11116,7 +12030,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>265</v>
       </c>
@@ -11129,8 +12043,8 @@
       <c r="D258" t="s">
         <v>683</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>687</v>
+      <c r="E258" t="s">
+        <v>1304</v>
       </c>
       <c r="F258" t="s">
         <v>740</v>
@@ -11145,7 +12059,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>266</v>
       </c>
@@ -11158,8 +12072,8 @@
       <c r="D259" t="s">
         <v>675</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>687</v>
+      <c r="E259" t="s">
+        <v>1310</v>
       </c>
       <c r="F259" t="s">
         <v>741</v>
@@ -11174,7 +12088,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>267</v>
       </c>
@@ -11182,13 +12096,13 @@
         <v>597</v>
       </c>
       <c r="C260">
-        <v>272.34</v>
+        <v>272.33999999999997</v>
       </c>
       <c r="D260" t="s">
         <v>686</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>687</v>
+      <c r="E260" t="s">
+        <v>1311</v>
       </c>
       <c r="F260" t="s">
         <v>736</v>
@@ -11203,7 +12117,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>268</v>
       </c>
@@ -11216,8 +12130,8 @@
       <c r="D261" t="s">
         <v>675</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>687</v>
+      <c r="E261" t="s">
+        <v>1312</v>
       </c>
       <c r="F261" t="s">
         <v>737</v>
@@ -11232,7 +12146,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>269</v>
       </c>
@@ -11240,13 +12154,13 @@
         <v>599</v>
       </c>
       <c r="C262">
-        <v>292.71</v>
+        <v>292.70999999999998</v>
       </c>
       <c r="D262" t="s">
         <v>673</v>
       </c>
-      <c r="E262" s="2" t="s">
-        <v>687</v>
+      <c r="E262" t="s">
+        <v>1313</v>
       </c>
       <c r="F262" t="s">
         <v>738</v>
@@ -11261,7 +12175,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>270</v>
       </c>
@@ -11269,13 +12183,13 @@
         <v>600</v>
       </c>
       <c r="C263">
-        <v>297.78</v>
+        <v>297.77999999999997</v>
       </c>
       <c r="D263" t="s">
         <v>673</v>
       </c>
-      <c r="E263" s="2" t="s">
-        <v>687</v>
+      <c r="E263" t="s">
+        <v>1314</v>
       </c>
       <c r="F263" t="s">
         <v>739</v>
@@ -11290,7 +12204,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>271</v>
       </c>
@@ -11303,8 +12217,8 @@
       <c r="D264" t="s">
         <v>677</v>
       </c>
-      <c r="E264" s="2" t="s">
-        <v>687</v>
+      <c r="E264" t="s">
+        <v>1315</v>
       </c>
       <c r="F264" t="s">
         <v>740</v>
@@ -11319,7 +12233,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>272</v>
       </c>
@@ -11327,13 +12241,13 @@
         <v>602</v>
       </c>
       <c r="C265">
-        <v>315.59</v>
+        <v>315.58999999999997</v>
       </c>
       <c r="D265" t="s">
         <v>669</v>
       </c>
-      <c r="E265" s="2" t="s">
-        <v>687</v>
+      <c r="E265" t="s">
+        <v>1316</v>
       </c>
       <c r="F265" t="s">
         <v>741</v>
@@ -11348,7 +12262,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>273</v>
       </c>
@@ -11361,8 +12275,8 @@
       <c r="D266" t="s">
         <v>671</v>
       </c>
-      <c r="E266" s="2" t="s">
-        <v>687</v>
+      <c r="E266" t="s">
+        <v>1317</v>
       </c>
       <c r="F266" t="s">
         <v>736</v>
@@ -11377,7 +12291,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>274</v>
       </c>
@@ -11390,8 +12304,8 @@
       <c r="D267" t="s">
         <v>682</v>
       </c>
-      <c r="E267" s="2" t="s">
-        <v>687</v>
+      <c r="E267" t="s">
+        <v>1318</v>
       </c>
       <c r="F267" t="s">
         <v>737</v>
@@ -11406,7 +12320,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>275</v>
       </c>
@@ -11419,8 +12333,8 @@
       <c r="D268" t="s">
         <v>675</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>687</v>
+      <c r="E268" t="s">
+        <v>1319</v>
       </c>
       <c r="F268" t="s">
         <v>738</v>
@@ -11435,7 +12349,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>276</v>
       </c>
@@ -11448,8 +12362,8 @@
       <c r="D269" t="s">
         <v>677</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>687</v>
+      <c r="E269" t="s">
+        <v>1320</v>
       </c>
       <c r="F269" t="s">
         <v>739</v>
@@ -11464,7 +12378,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>277</v>
       </c>
@@ -11477,8 +12391,8 @@
       <c r="D270" t="s">
         <v>680</v>
       </c>
-      <c r="E270" s="2" t="s">
-        <v>687</v>
+      <c r="E270" t="s">
+        <v>1321</v>
       </c>
       <c r="F270" t="s">
         <v>740</v>
@@ -11493,7 +12407,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>278</v>
       </c>
@@ -11506,8 +12420,8 @@
       <c r="D271" t="s">
         <v>681</v>
       </c>
-      <c r="E271" s="2" t="s">
-        <v>687</v>
+      <c r="E271" t="s">
+        <v>1322</v>
       </c>
       <c r="F271" t="s">
         <v>741</v>
@@ -11522,7 +12436,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>279</v>
       </c>
@@ -11535,8 +12449,8 @@
       <c r="D272" t="s">
         <v>681</v>
       </c>
-      <c r="E272" s="2" t="s">
-        <v>687</v>
+      <c r="E272" t="s">
+        <v>1323</v>
       </c>
       <c r="F272" t="s">
         <v>742</v>
@@ -11551,7 +12465,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>280</v>
       </c>
@@ -11559,13 +12473,13 @@
         <v>610</v>
       </c>
       <c r="C273">
-        <v>66.01000000000001</v>
+        <v>66.010000000000005</v>
       </c>
       <c r="D273" t="s">
         <v>677</v>
       </c>
-      <c r="E273" s="2" t="s">
-        <v>687</v>
+      <c r="E273" t="s">
+        <v>1324</v>
       </c>
       <c r="F273" t="s">
         <v>743</v>
@@ -11580,7 +12494,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>281</v>
       </c>
@@ -11588,13 +12502,13 @@
         <v>611</v>
       </c>
       <c r="C274">
-        <v>77.84999999999999</v>
+        <v>77.849999999999994</v>
       </c>
       <c r="D274" t="s">
         <v>669</v>
       </c>
-      <c r="E274" s="2" t="s">
-        <v>687</v>
+      <c r="E274" t="s">
+        <v>1325</v>
       </c>
       <c r="F274" t="s">
         <v>744</v>
@@ -11609,7 +12523,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>282</v>
       </c>
@@ -11622,8 +12536,8 @@
       <c r="D275" t="s">
         <v>669</v>
       </c>
-      <c r="E275" s="2" t="s">
-        <v>687</v>
+      <c r="E275" t="s">
+        <v>1326</v>
       </c>
       <c r="F275" t="s">
         <v>745</v>
@@ -11638,7 +12552,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>283</v>
       </c>
@@ -11651,8 +12565,8 @@
       <c r="D276" t="s">
         <v>674</v>
       </c>
-      <c r="E276" s="2" t="s">
-        <v>687</v>
+      <c r="E276" t="s">
+        <v>1327</v>
       </c>
       <c r="F276" t="s">
         <v>746</v>
@@ -11667,7 +12581,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>284</v>
       </c>
@@ -11680,8 +12594,8 @@
       <c r="D277" t="s">
         <v>679</v>
       </c>
-      <c r="E277" s="2" t="s">
-        <v>687</v>
+      <c r="E277" t="s">
+        <v>1328</v>
       </c>
       <c r="F277" t="s">
         <v>747</v>
@@ -11696,7 +12610,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>285</v>
       </c>
@@ -11709,8 +12623,8 @@
       <c r="D278" t="s">
         <v>672</v>
       </c>
-      <c r="E278" s="2" t="s">
-        <v>687</v>
+      <c r="E278" t="s">
+        <v>1328</v>
       </c>
       <c r="F278" t="s">
         <v>742</v>
@@ -11725,7 +12639,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>286</v>
       </c>
@@ -11733,13 +12647,13 @@
         <v>616</v>
       </c>
       <c r="C279">
-        <v>139.48</v>
+        <v>139.47999999999999</v>
       </c>
       <c r="D279" t="s">
         <v>675</v>
       </c>
-      <c r="E279" s="2" t="s">
-        <v>687</v>
+      <c r="E279" t="s">
+        <v>1329</v>
       </c>
       <c r="F279" t="s">
         <v>743</v>
@@ -11754,7 +12668,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>287</v>
       </c>
@@ -11767,8 +12681,8 @@
       <c r="D280" t="s">
         <v>678</v>
       </c>
-      <c r="E280" s="2" t="s">
-        <v>687</v>
+      <c r="E280" t="s">
+        <v>1330</v>
       </c>
       <c r="F280" t="s">
         <v>744</v>
@@ -11783,7 +12697,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>288</v>
       </c>
@@ -11796,8 +12710,8 @@
       <c r="D281" t="s">
         <v>672</v>
       </c>
-      <c r="E281" s="2" t="s">
-        <v>687</v>
+      <c r="E281" t="s">
+        <v>1331</v>
       </c>
       <c r="F281" t="s">
         <v>745</v>
@@ -11812,7 +12726,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>289</v>
       </c>
@@ -11825,8 +12739,8 @@
       <c r="D282" t="s">
         <v>672</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>687</v>
+      <c r="E282" t="s">
+        <v>1332</v>
       </c>
       <c r="F282" t="s">
         <v>746</v>
@@ -11841,7 +12755,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>290</v>
       </c>
@@ -11854,8 +12768,8 @@
       <c r="D283" t="s">
         <v>674</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>687</v>
+      <c r="E283" t="s">
+        <v>1333</v>
       </c>
       <c r="F283" t="s">
         <v>747</v>
@@ -11870,7 +12784,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>291</v>
       </c>
@@ -11883,8 +12797,8 @@
       <c r="D284" t="s">
         <v>677</v>
       </c>
-      <c r="E284" s="2" t="s">
-        <v>687</v>
+      <c r="E284" t="s">
+        <v>1334</v>
       </c>
       <c r="F284" t="s">
         <v>742</v>
@@ -11899,7 +12813,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>292</v>
       </c>
@@ -11912,8 +12826,8 @@
       <c r="D285" t="s">
         <v>682</v>
       </c>
-      <c r="E285" s="2" t="s">
-        <v>687</v>
+      <c r="E285" t="s">
+        <v>1335</v>
       </c>
       <c r="F285" t="s">
         <v>743</v>
@@ -11928,7 +12842,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>293</v>
       </c>
@@ -11941,8 +12855,8 @@
       <c r="D286" t="s">
         <v>679</v>
       </c>
-      <c r="E286" s="2" t="s">
-        <v>687</v>
+      <c r="E286" t="s">
+        <v>1336</v>
       </c>
       <c r="F286" t="s">
         <v>744</v>
@@ -11957,7 +12871,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>294</v>
       </c>
@@ -11970,8 +12884,8 @@
       <c r="D287" t="s">
         <v>677</v>
       </c>
-      <c r="E287" s="2" t="s">
-        <v>687</v>
+      <c r="E287" t="s">
+        <v>1337</v>
       </c>
       <c r="F287" t="s">
         <v>745</v>
@@ -11986,7 +12900,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>295</v>
       </c>
@@ -11999,8 +12913,8 @@
       <c r="D288" t="s">
         <v>682</v>
       </c>
-      <c r="E288" s="2" t="s">
-        <v>687</v>
+      <c r="E288" t="s">
+        <v>1338</v>
       </c>
       <c r="F288" t="s">
         <v>746</v>
@@ -12015,7 +12929,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>296</v>
       </c>
@@ -12023,13 +12937,13 @@
         <v>626</v>
       </c>
       <c r="C289">
-        <v>259.6</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="D289" t="s">
         <v>672</v>
       </c>
-      <c r="E289" s="2" t="s">
-        <v>687</v>
+      <c r="E289" t="s">
+        <v>1339</v>
       </c>
       <c r="F289" t="s">
         <v>747</v>
@@ -12044,7 +12958,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>297</v>
       </c>
@@ -12052,13 +12966,13 @@
         <v>627</v>
       </c>
       <c r="C290">
-        <v>258.46</v>
+        <v>258.45999999999998</v>
       </c>
       <c r="D290" t="s">
         <v>681</v>
       </c>
-      <c r="E290" s="2" t="s">
-        <v>687</v>
+      <c r="E290" t="s">
+        <v>1340</v>
       </c>
       <c r="F290" t="s">
         <v>742</v>
@@ -12073,7 +12987,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>298</v>
       </c>
@@ -12086,8 +13000,8 @@
       <c r="D291" t="s">
         <v>686</v>
       </c>
-      <c r="E291" s="2" t="s">
-        <v>687</v>
+      <c r="E291" t="s">
+        <v>1341</v>
       </c>
       <c r="F291" t="s">
         <v>743</v>
@@ -12102,7 +13016,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>299</v>
       </c>
@@ -12115,8 +13029,8 @@
       <c r="D292" t="s">
         <v>672</v>
       </c>
-      <c r="E292" s="2" t="s">
-        <v>687</v>
+      <c r="E292" t="s">
+        <v>1342</v>
       </c>
       <c r="F292" t="s">
         <v>744</v>
@@ -12131,7 +13045,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>300</v>
       </c>
@@ -12144,8 +13058,8 @@
       <c r="D293" t="s">
         <v>674</v>
       </c>
-      <c r="E293" s="2" t="s">
-        <v>687</v>
+      <c r="E293" t="s">
+        <v>1343</v>
       </c>
       <c r="F293" t="s">
         <v>745</v>
@@ -12160,7 +13074,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>301</v>
       </c>
@@ -12173,8 +13087,8 @@
       <c r="D294" t="s">
         <v>681</v>
       </c>
-      <c r="E294" s="2" t="s">
-        <v>687</v>
+      <c r="E294" t="s">
+        <v>1344</v>
       </c>
       <c r="F294" t="s">
         <v>746</v>
@@ -12189,7 +13103,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>302</v>
       </c>
@@ -12197,13 +13111,13 @@
         <v>632</v>
       </c>
       <c r="C295">
-        <v>324.65</v>
+        <v>324.64999999999998</v>
       </c>
       <c r="D295" t="s">
         <v>679</v>
       </c>
-      <c r="E295" s="2" t="s">
-        <v>687</v>
+      <c r="E295" t="s">
+        <v>1345</v>
       </c>
       <c r="F295" t="s">
         <v>747</v>
@@ -12218,7 +13132,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>303</v>
       </c>
@@ -12231,8 +13145,8 @@
       <c r="D296" t="s">
         <v>678</v>
       </c>
-      <c r="E296" s="2" t="s">
-        <v>687</v>
+      <c r="E296" t="s">
+        <v>1346</v>
       </c>
       <c r="F296" t="s">
         <v>742</v>
@@ -12247,7 +13161,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>304</v>
       </c>
@@ -12260,8 +13174,8 @@
       <c r="D297" t="s">
         <v>672</v>
       </c>
-      <c r="E297" s="2" t="s">
-        <v>687</v>
+      <c r="E297" t="s">
+        <v>1347</v>
       </c>
       <c r="F297" t="s">
         <v>743</v>
@@ -12276,7 +13190,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>305</v>
       </c>
@@ -12289,8 +13203,8 @@
       <c r="D298" t="s">
         <v>672</v>
       </c>
-      <c r="E298" s="2" t="s">
-        <v>687</v>
+      <c r="E298" t="s">
+        <v>1348</v>
       </c>
       <c r="F298" t="s">
         <v>744</v>
@@ -12305,7 +13219,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>306</v>
       </c>
@@ -12318,8 +13232,8 @@
       <c r="D299" t="s">
         <v>684</v>
       </c>
-      <c r="E299" s="2" t="s">
-        <v>687</v>
+      <c r="E299" t="s">
+        <v>1349</v>
       </c>
       <c r="F299" t="s">
         <v>745</v>
@@ -12334,7 +13248,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>307</v>
       </c>
@@ -12347,8 +13261,8 @@
       <c r="D300" t="s">
         <v>681</v>
       </c>
-      <c r="E300" s="2" t="s">
-        <v>687</v>
+      <c r="E300" t="s">
+        <v>1350</v>
       </c>
       <c r="F300" t="s">
         <v>746</v>
@@ -12363,7 +13277,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>308</v>
       </c>
@@ -12376,8 +13290,8 @@
       <c r="D301" t="s">
         <v>671</v>
       </c>
-      <c r="E301" s="2" t="s">
-        <v>687</v>
+      <c r="E301" t="s">
+        <v>1351</v>
       </c>
       <c r="F301" t="s">
         <v>747</v>
@@ -12392,7 +13306,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>309</v>
       </c>
@@ -12405,8 +13319,8 @@
       <c r="D302" t="s">
         <v>671</v>
       </c>
-      <c r="E302" s="2" t="s">
-        <v>687</v>
+      <c r="E302" t="s">
+        <v>1352</v>
       </c>
       <c r="F302" t="s">
         <v>748</v>
@@ -12421,7 +13335,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>310</v>
       </c>
@@ -12434,8 +13348,8 @@
       <c r="D303" t="s">
         <v>672</v>
       </c>
-      <c r="E303" s="2" t="s">
-        <v>687</v>
+      <c r="E303" t="s">
+        <v>1353</v>
       </c>
       <c r="F303" t="s">
         <v>749</v>
@@ -12450,7 +13364,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>311</v>
       </c>
@@ -12458,13 +13372,13 @@
         <v>641</v>
       </c>
       <c r="C304">
-        <v>81.95999999999999</v>
+        <v>81.96</v>
       </c>
       <c r="D304" t="s">
         <v>679</v>
       </c>
-      <c r="E304" s="2" t="s">
-        <v>687</v>
+      <c r="E304" t="s">
+        <v>1354</v>
       </c>
       <c r="F304" t="s">
         <v>750</v>
@@ -12479,7 +13393,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>312</v>
       </c>
@@ -12492,8 +13406,8 @@
       <c r="D305" t="s">
         <v>673</v>
       </c>
-      <c r="E305" s="2" t="s">
-        <v>687</v>
+      <c r="E305" t="s">
+        <v>1355</v>
       </c>
       <c r="F305" t="s">
         <v>751</v>
@@ -12508,7 +13422,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>313</v>
       </c>
@@ -12521,8 +13435,8 @@
       <c r="D306" t="s">
         <v>680</v>
       </c>
-      <c r="E306" s="2" t="s">
-        <v>687</v>
+      <c r="E306" t="s">
+        <v>1356</v>
       </c>
       <c r="F306" t="s">
         <v>752</v>
@@ -12537,7 +13451,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>314</v>
       </c>
@@ -12550,8 +13464,8 @@
       <c r="D307" t="s">
         <v>680</v>
       </c>
-      <c r="E307" s="2" t="s">
-        <v>687</v>
+      <c r="E307" t="s">
+        <v>1357</v>
       </c>
       <c r="F307" t="s">
         <v>753</v>
@@ -12566,7 +13480,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>315</v>
       </c>
@@ -12579,8 +13493,8 @@
       <c r="D308" t="s">
         <v>677</v>
       </c>
-      <c r="E308" s="2" t="s">
-        <v>687</v>
+      <c r="E308" t="s">
+        <v>1358</v>
       </c>
       <c r="F308" t="s">
         <v>748</v>
@@ -12595,7 +13509,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>316</v>
       </c>
@@ -12603,13 +13517,13 @@
         <v>646</v>
       </c>
       <c r="C309">
-        <v>132.67</v>
+        <v>132.66999999999999</v>
       </c>
       <c r="D309" t="s">
         <v>684</v>
       </c>
-      <c r="E309" s="2" t="s">
-        <v>687</v>
+      <c r="E309" t="s">
+        <v>1359</v>
       </c>
       <c r="F309" t="s">
         <v>749</v>
@@ -12624,7 +13538,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>317</v>
       </c>
@@ -12637,8 +13551,8 @@
       <c r="D310" t="s">
         <v>679</v>
       </c>
-      <c r="E310" s="2" t="s">
-        <v>687</v>
+      <c r="E310" t="s">
+        <v>1360</v>
       </c>
       <c r="F310" t="s">
         <v>750</v>
@@ -12653,7 +13567,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>318</v>
       </c>
@@ -12666,8 +13580,8 @@
       <c r="D311" t="s">
         <v>673</v>
       </c>
-      <c r="E311" s="2" t="s">
-        <v>687</v>
+      <c r="E311" t="s">
+        <v>1361</v>
       </c>
       <c r="F311" t="s">
         <v>751</v>
@@ -12682,7 +13596,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>319</v>
       </c>
@@ -12695,8 +13609,8 @@
       <c r="D312" t="s">
         <v>678</v>
       </c>
-      <c r="E312" s="2" t="s">
-        <v>687</v>
+      <c r="E312" t="s">
+        <v>1362</v>
       </c>
       <c r="F312" t="s">
         <v>752</v>
@@ -12711,7 +13625,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>320</v>
       </c>
@@ -12724,8 +13638,8 @@
       <c r="D313" t="s">
         <v>673</v>
       </c>
-      <c r="E313" s="2" t="s">
-        <v>687</v>
+      <c r="E313" t="s">
+        <v>1363</v>
       </c>
       <c r="F313" t="s">
         <v>753</v>
@@ -12740,7 +13654,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>321</v>
       </c>
@@ -12753,8 +13667,8 @@
       <c r="D314" t="s">
         <v>681</v>
       </c>
-      <c r="E314" s="2" t="s">
-        <v>687</v>
+      <c r="E314" t="s">
+        <v>1364</v>
       </c>
       <c r="F314" t="s">
         <v>748</v>
@@ -12769,7 +13683,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>322</v>
       </c>
@@ -12782,8 +13696,8 @@
       <c r="D315" t="s">
         <v>672</v>
       </c>
-      <c r="E315" s="2" t="s">
-        <v>687</v>
+      <c r="E315" t="s">
+        <v>1365</v>
       </c>
       <c r="F315" t="s">
         <v>749</v>
@@ -12798,7 +13712,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>323</v>
       </c>
@@ -12811,8 +13725,8 @@
       <c r="D316" t="s">
         <v>672</v>
       </c>
-      <c r="E316" s="2" t="s">
-        <v>687</v>
+      <c r="E316" t="s">
+        <v>1366</v>
       </c>
       <c r="F316" t="s">
         <v>750</v>
@@ -12827,7 +13741,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>324</v>
       </c>
@@ -12840,8 +13754,8 @@
       <c r="D317" t="s">
         <v>686</v>
       </c>
-      <c r="E317" s="2" t="s">
-        <v>687</v>
+      <c r="E317" t="s">
+        <v>1367</v>
       </c>
       <c r="F317" t="s">
         <v>751</v>
@@ -12856,7 +13770,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>325</v>
       </c>
@@ -12869,8 +13783,8 @@
       <c r="D318" t="s">
         <v>670</v>
       </c>
-      <c r="E318" s="2" t="s">
-        <v>687</v>
+      <c r="E318" t="s">
+        <v>1368</v>
       </c>
       <c r="F318" t="s">
         <v>752</v>
@@ -12885,7 +13799,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>326</v>
       </c>
@@ -12898,8 +13812,8 @@
       <c r="D319" t="s">
         <v>674</v>
       </c>
-      <c r="E319" s="2" t="s">
-        <v>687</v>
+      <c r="E319" t="s">
+        <v>1369</v>
       </c>
       <c r="F319" t="s">
         <v>753</v>
@@ -12914,7 +13828,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>327</v>
       </c>
@@ -12927,8 +13841,8 @@
       <c r="D320" t="s">
         <v>685</v>
       </c>
-      <c r="E320" s="2" t="s">
-        <v>687</v>
+      <c r="E320" t="s">
+        <v>1370</v>
       </c>
       <c r="F320" t="s">
         <v>748</v>
@@ -12943,7 +13857,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>328</v>
       </c>
@@ -12951,13 +13865,13 @@
         <v>658</v>
       </c>
       <c r="C321">
-        <v>272.1</v>
+        <v>272.10000000000002</v>
       </c>
       <c r="D321" t="s">
         <v>677</v>
       </c>
-      <c r="E321" s="2" t="s">
-        <v>687</v>
+      <c r="E321" t="s">
+        <v>1371</v>
       </c>
       <c r="F321" t="s">
         <v>749</v>
@@ -12972,7 +13886,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>329</v>
       </c>
@@ -12985,8 +13899,8 @@
       <c r="D322" t="s">
         <v>680</v>
       </c>
-      <c r="E322" s="2" t="s">
-        <v>687</v>
+      <c r="E322" t="s">
+        <v>1372</v>
       </c>
       <c r="F322" t="s">
         <v>750</v>
@@ -13001,7 +13915,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>330</v>
       </c>
@@ -13014,8 +13928,8 @@
       <c r="D323" t="s">
         <v>678</v>
       </c>
-      <c r="E323" s="2" t="s">
-        <v>687</v>
+      <c r="E323" t="s">
+        <v>1373</v>
       </c>
       <c r="F323" t="s">
         <v>751</v>
@@ -13030,7 +13944,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>331</v>
       </c>
@@ -13043,8 +13957,8 @@
       <c r="D324" t="s">
         <v>683</v>
       </c>
-      <c r="E324" s="2" t="s">
-        <v>687</v>
+      <c r="E324" t="s">
+        <v>1374</v>
       </c>
       <c r="F324" t="s">
         <v>752</v>
@@ -13059,7 +13973,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>332</v>
       </c>
@@ -13072,8 +13986,8 @@
       <c r="D325" t="s">
         <v>680</v>
       </c>
-      <c r="E325" s="2" t="s">
-        <v>687</v>
+      <c r="E325" t="s">
+        <v>1375</v>
       </c>
       <c r="F325" t="s">
         <v>753</v>
@@ -13088,7 +14002,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>333</v>
       </c>
@@ -13101,8 +14015,8 @@
       <c r="D326" t="s">
         <v>681</v>
       </c>
-      <c r="E326" s="2" t="s">
-        <v>687</v>
+      <c r="E326" t="s">
+        <v>1376</v>
       </c>
       <c r="F326" t="s">
         <v>748</v>
@@ -13117,7 +14031,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>334</v>
       </c>
@@ -13130,8 +14044,8 @@
       <c r="D327" t="s">
         <v>682</v>
       </c>
-      <c r="E327" s="2" t="s">
-        <v>687</v>
+      <c r="E327" t="s">
+        <v>1377</v>
       </c>
       <c r="F327" t="s">
         <v>749</v>
@@ -13146,7 +14060,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>335</v>
       </c>
@@ -13159,8 +14073,8 @@
       <c r="D328" t="s">
         <v>679</v>
       </c>
-      <c r="E328" s="2" t="s">
-        <v>687</v>
+      <c r="E328" t="s">
+        <v>1378</v>
       </c>
       <c r="F328" t="s">
         <v>750</v>
@@ -13175,7 +14089,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>336</v>
       </c>
@@ -13188,8 +14102,8 @@
       <c r="D329" t="s">
         <v>675</v>
       </c>
-      <c r="E329" s="2" t="s">
-        <v>687</v>
+      <c r="E329" t="s">
+        <v>1379</v>
       </c>
       <c r="F329" t="s">
         <v>751</v>
@@ -13204,7 +14118,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>337</v>
       </c>
@@ -13217,8 +14131,8 @@
       <c r="D330" t="s">
         <v>676</v>
       </c>
-      <c r="E330" s="2" t="s">
-        <v>687</v>
+      <c r="E330" t="s">
+        <v>1380</v>
       </c>
       <c r="F330" t="s">
         <v>752</v>
@@ -13233,7 +14147,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>338</v>
       </c>
@@ -13246,8 +14160,8 @@
       <c r="D331" t="s">
         <v>682</v>
       </c>
-      <c r="E331" s="2" t="s">
-        <v>687</v>
+      <c r="E331" t="s">
+        <v>1381</v>
       </c>
       <c r="F331" t="s">
         <v>753</v>
@@ -13264,666 +14178,337 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="E7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="E8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="E9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="E10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="E11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="E12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23"/>
-    <hyperlink ref="E13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25"/>
-    <hyperlink ref="E14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27"/>
-    <hyperlink ref="E15" r:id="rId28"/>
-    <hyperlink ref="B16" r:id="rId29"/>
-    <hyperlink ref="E16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31"/>
-    <hyperlink ref="E17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33"/>
-    <hyperlink ref="E18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35"/>
-    <hyperlink ref="E19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="E20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="E21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="E22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="E23" r:id="rId44"/>
-    <hyperlink ref="B24" r:id="rId45"/>
-    <hyperlink ref="E24" r:id="rId46"/>
-    <hyperlink ref="B25" r:id="rId47"/>
-    <hyperlink ref="E25" r:id="rId48"/>
-    <hyperlink ref="B26" r:id="rId49"/>
-    <hyperlink ref="E26" r:id="rId50"/>
-    <hyperlink ref="B27" r:id="rId51"/>
-    <hyperlink ref="E27" r:id="rId52"/>
-    <hyperlink ref="B28" r:id="rId53"/>
-    <hyperlink ref="E28" r:id="rId54"/>
-    <hyperlink ref="B29" r:id="rId55"/>
-    <hyperlink ref="E29" r:id="rId56"/>
-    <hyperlink ref="B30" r:id="rId57"/>
-    <hyperlink ref="E30" r:id="rId58"/>
-    <hyperlink ref="B31" r:id="rId59"/>
-    <hyperlink ref="E31" r:id="rId60"/>
-    <hyperlink ref="B32" r:id="rId61"/>
-    <hyperlink ref="E32" r:id="rId62"/>
-    <hyperlink ref="B33" r:id="rId63"/>
-    <hyperlink ref="E33" r:id="rId64"/>
-    <hyperlink ref="B34" r:id="rId65"/>
-    <hyperlink ref="E34" r:id="rId66"/>
-    <hyperlink ref="B35" r:id="rId67"/>
-    <hyperlink ref="E35" r:id="rId68"/>
-    <hyperlink ref="B36" r:id="rId69"/>
-    <hyperlink ref="E36" r:id="rId70"/>
-    <hyperlink ref="B37" r:id="rId71"/>
-    <hyperlink ref="E37" r:id="rId72"/>
-    <hyperlink ref="B38" r:id="rId73"/>
-    <hyperlink ref="E38" r:id="rId74"/>
-    <hyperlink ref="B39" r:id="rId75"/>
-    <hyperlink ref="E39" r:id="rId76"/>
-    <hyperlink ref="B40" r:id="rId77"/>
-    <hyperlink ref="E40" r:id="rId78"/>
-    <hyperlink ref="B41" r:id="rId79"/>
-    <hyperlink ref="E41" r:id="rId80"/>
-    <hyperlink ref="B42" r:id="rId81"/>
-    <hyperlink ref="E42" r:id="rId82"/>
-    <hyperlink ref="B43" r:id="rId83"/>
-    <hyperlink ref="E43" r:id="rId84"/>
-    <hyperlink ref="B44" r:id="rId85"/>
-    <hyperlink ref="E44" r:id="rId86"/>
-    <hyperlink ref="B45" r:id="rId87"/>
-    <hyperlink ref="E45" r:id="rId88"/>
-    <hyperlink ref="B46" r:id="rId89"/>
-    <hyperlink ref="E46" r:id="rId90"/>
-    <hyperlink ref="B47" r:id="rId91"/>
-    <hyperlink ref="E47" r:id="rId92"/>
-    <hyperlink ref="B48" r:id="rId93"/>
-    <hyperlink ref="E48" r:id="rId94"/>
-    <hyperlink ref="B49" r:id="rId95"/>
-    <hyperlink ref="E49" r:id="rId96"/>
-    <hyperlink ref="B50" r:id="rId97"/>
-    <hyperlink ref="E50" r:id="rId98"/>
-    <hyperlink ref="B51" r:id="rId99"/>
-    <hyperlink ref="E51" r:id="rId100"/>
-    <hyperlink ref="B52" r:id="rId101"/>
-    <hyperlink ref="E52" r:id="rId102"/>
-    <hyperlink ref="B53" r:id="rId103"/>
-    <hyperlink ref="E53" r:id="rId104"/>
-    <hyperlink ref="B54" r:id="rId105"/>
-    <hyperlink ref="E54" r:id="rId106"/>
-    <hyperlink ref="B55" r:id="rId107"/>
-    <hyperlink ref="E55" r:id="rId108"/>
-    <hyperlink ref="B56" r:id="rId109"/>
-    <hyperlink ref="E56" r:id="rId110"/>
-    <hyperlink ref="B57" r:id="rId111"/>
-    <hyperlink ref="E57" r:id="rId112"/>
-    <hyperlink ref="B58" r:id="rId113"/>
-    <hyperlink ref="E58" r:id="rId114"/>
-    <hyperlink ref="B59" r:id="rId115"/>
-    <hyperlink ref="E59" r:id="rId116"/>
-    <hyperlink ref="B60" r:id="rId117"/>
-    <hyperlink ref="E60" r:id="rId118"/>
-    <hyperlink ref="B61" r:id="rId119"/>
-    <hyperlink ref="E61" r:id="rId120"/>
-    <hyperlink ref="B62" r:id="rId121"/>
-    <hyperlink ref="E62" r:id="rId122"/>
-    <hyperlink ref="B63" r:id="rId123"/>
-    <hyperlink ref="E63" r:id="rId124"/>
-    <hyperlink ref="B64" r:id="rId125"/>
-    <hyperlink ref="E64" r:id="rId126"/>
-    <hyperlink ref="B65" r:id="rId127"/>
-    <hyperlink ref="E65" r:id="rId128"/>
-    <hyperlink ref="B66" r:id="rId129"/>
-    <hyperlink ref="E66" r:id="rId130"/>
-    <hyperlink ref="B67" r:id="rId131"/>
-    <hyperlink ref="E67" r:id="rId132"/>
-    <hyperlink ref="B68" r:id="rId133"/>
-    <hyperlink ref="E68" r:id="rId134"/>
-    <hyperlink ref="B69" r:id="rId135"/>
-    <hyperlink ref="E69" r:id="rId136"/>
-    <hyperlink ref="B70" r:id="rId137"/>
-    <hyperlink ref="E70" r:id="rId138"/>
-    <hyperlink ref="B71" r:id="rId139"/>
-    <hyperlink ref="E71" r:id="rId140"/>
-    <hyperlink ref="B72" r:id="rId141"/>
-    <hyperlink ref="E72" r:id="rId142"/>
-    <hyperlink ref="B73" r:id="rId143"/>
-    <hyperlink ref="E73" r:id="rId144"/>
-    <hyperlink ref="B74" r:id="rId145"/>
-    <hyperlink ref="E74" r:id="rId146"/>
-    <hyperlink ref="B75" r:id="rId147"/>
-    <hyperlink ref="E75" r:id="rId148"/>
-    <hyperlink ref="B76" r:id="rId149"/>
-    <hyperlink ref="E76" r:id="rId150"/>
-    <hyperlink ref="B77" r:id="rId151"/>
-    <hyperlink ref="E77" r:id="rId152"/>
-    <hyperlink ref="B78" r:id="rId153"/>
-    <hyperlink ref="E78" r:id="rId154"/>
-    <hyperlink ref="B79" r:id="rId155"/>
-    <hyperlink ref="E79" r:id="rId156"/>
-    <hyperlink ref="B80" r:id="rId157"/>
-    <hyperlink ref="E80" r:id="rId158"/>
-    <hyperlink ref="B81" r:id="rId159"/>
-    <hyperlink ref="E81" r:id="rId160"/>
-    <hyperlink ref="B82" r:id="rId161"/>
-    <hyperlink ref="E82" r:id="rId162"/>
-    <hyperlink ref="B83" r:id="rId163"/>
-    <hyperlink ref="E83" r:id="rId164"/>
-    <hyperlink ref="B84" r:id="rId165"/>
-    <hyperlink ref="E84" r:id="rId166"/>
-    <hyperlink ref="B85" r:id="rId167"/>
-    <hyperlink ref="E85" r:id="rId168"/>
-    <hyperlink ref="B86" r:id="rId169"/>
-    <hyperlink ref="E86" r:id="rId170"/>
-    <hyperlink ref="B87" r:id="rId171"/>
-    <hyperlink ref="E87" r:id="rId172"/>
-    <hyperlink ref="B88" r:id="rId173"/>
-    <hyperlink ref="E88" r:id="rId174"/>
-    <hyperlink ref="B89" r:id="rId175"/>
-    <hyperlink ref="E89" r:id="rId176"/>
-    <hyperlink ref="B90" r:id="rId177"/>
-    <hyperlink ref="E90" r:id="rId178"/>
-    <hyperlink ref="B91" r:id="rId179"/>
-    <hyperlink ref="E91" r:id="rId180"/>
-    <hyperlink ref="B92" r:id="rId181"/>
-    <hyperlink ref="E92" r:id="rId182"/>
-    <hyperlink ref="B93" r:id="rId183"/>
-    <hyperlink ref="E93" r:id="rId184"/>
-    <hyperlink ref="B94" r:id="rId185"/>
-    <hyperlink ref="E94" r:id="rId186"/>
-    <hyperlink ref="B95" r:id="rId187"/>
-    <hyperlink ref="E95" r:id="rId188"/>
-    <hyperlink ref="B96" r:id="rId189"/>
-    <hyperlink ref="E96" r:id="rId190"/>
-    <hyperlink ref="B97" r:id="rId191"/>
-    <hyperlink ref="E97" r:id="rId192"/>
-    <hyperlink ref="B98" r:id="rId193"/>
-    <hyperlink ref="E98" r:id="rId194"/>
-    <hyperlink ref="B99" r:id="rId195"/>
-    <hyperlink ref="E99" r:id="rId196"/>
-    <hyperlink ref="B100" r:id="rId197"/>
-    <hyperlink ref="E100" r:id="rId198"/>
-    <hyperlink ref="B101" r:id="rId199"/>
-    <hyperlink ref="E101" r:id="rId200"/>
-    <hyperlink ref="B102" r:id="rId201"/>
-    <hyperlink ref="E102" r:id="rId202"/>
-    <hyperlink ref="B103" r:id="rId203"/>
-    <hyperlink ref="E103" r:id="rId204"/>
-    <hyperlink ref="B104" r:id="rId205"/>
-    <hyperlink ref="E104" r:id="rId206"/>
-    <hyperlink ref="B105" r:id="rId207"/>
-    <hyperlink ref="E105" r:id="rId208"/>
-    <hyperlink ref="B106" r:id="rId209"/>
-    <hyperlink ref="E106" r:id="rId210"/>
-    <hyperlink ref="B107" r:id="rId211"/>
-    <hyperlink ref="E107" r:id="rId212"/>
-    <hyperlink ref="B108" r:id="rId213"/>
-    <hyperlink ref="E108" r:id="rId214"/>
-    <hyperlink ref="B109" r:id="rId215"/>
-    <hyperlink ref="E109" r:id="rId216"/>
-    <hyperlink ref="B110" r:id="rId217"/>
-    <hyperlink ref="E110" r:id="rId218"/>
-    <hyperlink ref="B111" r:id="rId219"/>
-    <hyperlink ref="E111" r:id="rId220"/>
-    <hyperlink ref="B112" r:id="rId221"/>
-    <hyperlink ref="E112" r:id="rId222"/>
-    <hyperlink ref="B113" r:id="rId223"/>
-    <hyperlink ref="E113" r:id="rId224"/>
-    <hyperlink ref="B114" r:id="rId225"/>
-    <hyperlink ref="E114" r:id="rId226"/>
-    <hyperlink ref="B115" r:id="rId227"/>
-    <hyperlink ref="E115" r:id="rId228"/>
-    <hyperlink ref="B116" r:id="rId229"/>
-    <hyperlink ref="E116" r:id="rId230"/>
-    <hyperlink ref="B117" r:id="rId231"/>
-    <hyperlink ref="E117" r:id="rId232"/>
-    <hyperlink ref="B118" r:id="rId233"/>
-    <hyperlink ref="E118" r:id="rId234"/>
-    <hyperlink ref="B119" r:id="rId235"/>
-    <hyperlink ref="E119" r:id="rId236"/>
-    <hyperlink ref="B120" r:id="rId237"/>
-    <hyperlink ref="E120" r:id="rId238"/>
-    <hyperlink ref="B121" r:id="rId239"/>
-    <hyperlink ref="E121" r:id="rId240"/>
-    <hyperlink ref="B122" r:id="rId241"/>
-    <hyperlink ref="E122" r:id="rId242"/>
-    <hyperlink ref="B123" r:id="rId243"/>
-    <hyperlink ref="E123" r:id="rId244"/>
-    <hyperlink ref="B124" r:id="rId245"/>
-    <hyperlink ref="E124" r:id="rId246"/>
-    <hyperlink ref="B125" r:id="rId247"/>
-    <hyperlink ref="E125" r:id="rId248"/>
-    <hyperlink ref="B126" r:id="rId249"/>
-    <hyperlink ref="E126" r:id="rId250"/>
-    <hyperlink ref="B127" r:id="rId251"/>
-    <hyperlink ref="E127" r:id="rId252"/>
-    <hyperlink ref="B128" r:id="rId253"/>
-    <hyperlink ref="E128" r:id="rId254"/>
-    <hyperlink ref="B129" r:id="rId255"/>
-    <hyperlink ref="E129" r:id="rId256"/>
-    <hyperlink ref="B130" r:id="rId257"/>
-    <hyperlink ref="E130" r:id="rId258"/>
-    <hyperlink ref="B131" r:id="rId259"/>
-    <hyperlink ref="E131" r:id="rId260"/>
-    <hyperlink ref="B132" r:id="rId261"/>
-    <hyperlink ref="E132" r:id="rId262"/>
-    <hyperlink ref="B133" r:id="rId263"/>
-    <hyperlink ref="E133" r:id="rId264"/>
-    <hyperlink ref="B134" r:id="rId265"/>
-    <hyperlink ref="E134" r:id="rId266"/>
-    <hyperlink ref="B135" r:id="rId267"/>
-    <hyperlink ref="E135" r:id="rId268"/>
-    <hyperlink ref="B136" r:id="rId269"/>
-    <hyperlink ref="E136" r:id="rId270"/>
-    <hyperlink ref="B137" r:id="rId271"/>
-    <hyperlink ref="E137" r:id="rId272"/>
-    <hyperlink ref="B138" r:id="rId273"/>
-    <hyperlink ref="E138" r:id="rId274"/>
-    <hyperlink ref="B139" r:id="rId275"/>
-    <hyperlink ref="E139" r:id="rId276"/>
-    <hyperlink ref="B140" r:id="rId277"/>
-    <hyperlink ref="E140" r:id="rId278"/>
-    <hyperlink ref="B141" r:id="rId279"/>
-    <hyperlink ref="E141" r:id="rId280"/>
-    <hyperlink ref="B142" r:id="rId281"/>
-    <hyperlink ref="E142" r:id="rId282"/>
-    <hyperlink ref="B143" r:id="rId283"/>
-    <hyperlink ref="E143" r:id="rId284"/>
-    <hyperlink ref="B144" r:id="rId285"/>
-    <hyperlink ref="E144" r:id="rId286"/>
-    <hyperlink ref="B145" r:id="rId287"/>
-    <hyperlink ref="E145" r:id="rId288"/>
-    <hyperlink ref="B146" r:id="rId289"/>
-    <hyperlink ref="E146" r:id="rId290"/>
-    <hyperlink ref="B147" r:id="rId291"/>
-    <hyperlink ref="E147" r:id="rId292"/>
-    <hyperlink ref="B148" r:id="rId293"/>
-    <hyperlink ref="E148" r:id="rId294"/>
-    <hyperlink ref="B149" r:id="rId295"/>
-    <hyperlink ref="E149" r:id="rId296"/>
-    <hyperlink ref="B150" r:id="rId297"/>
-    <hyperlink ref="E150" r:id="rId298"/>
-    <hyperlink ref="B151" r:id="rId299"/>
-    <hyperlink ref="E151" r:id="rId300"/>
-    <hyperlink ref="B152" r:id="rId301"/>
-    <hyperlink ref="E152" r:id="rId302"/>
-    <hyperlink ref="B153" r:id="rId303"/>
-    <hyperlink ref="E153" r:id="rId304"/>
-    <hyperlink ref="B154" r:id="rId305"/>
-    <hyperlink ref="E154" r:id="rId306"/>
-    <hyperlink ref="B155" r:id="rId307"/>
-    <hyperlink ref="E155" r:id="rId308"/>
-    <hyperlink ref="B156" r:id="rId309"/>
-    <hyperlink ref="E156" r:id="rId310"/>
-    <hyperlink ref="B157" r:id="rId311"/>
-    <hyperlink ref="E157" r:id="rId312"/>
-    <hyperlink ref="B158" r:id="rId313"/>
-    <hyperlink ref="E158" r:id="rId314"/>
-    <hyperlink ref="B159" r:id="rId315"/>
-    <hyperlink ref="E159" r:id="rId316"/>
-    <hyperlink ref="B160" r:id="rId317"/>
-    <hyperlink ref="E160" r:id="rId318"/>
-    <hyperlink ref="B161" r:id="rId319"/>
-    <hyperlink ref="E161" r:id="rId320"/>
-    <hyperlink ref="B162" r:id="rId321"/>
-    <hyperlink ref="E162" r:id="rId322"/>
-    <hyperlink ref="B163" r:id="rId323"/>
-    <hyperlink ref="E163" r:id="rId324"/>
-    <hyperlink ref="B164" r:id="rId325"/>
-    <hyperlink ref="E164" r:id="rId326"/>
-    <hyperlink ref="B165" r:id="rId327"/>
-    <hyperlink ref="E165" r:id="rId328"/>
-    <hyperlink ref="B166" r:id="rId329"/>
-    <hyperlink ref="E166" r:id="rId330"/>
-    <hyperlink ref="B167" r:id="rId331"/>
-    <hyperlink ref="E167" r:id="rId332"/>
-    <hyperlink ref="B168" r:id="rId333"/>
-    <hyperlink ref="E168" r:id="rId334"/>
-    <hyperlink ref="B169" r:id="rId335"/>
-    <hyperlink ref="E169" r:id="rId336"/>
-    <hyperlink ref="B170" r:id="rId337"/>
-    <hyperlink ref="E170" r:id="rId338"/>
-    <hyperlink ref="B171" r:id="rId339"/>
-    <hyperlink ref="E171" r:id="rId340"/>
-    <hyperlink ref="B172" r:id="rId341"/>
-    <hyperlink ref="E172" r:id="rId342"/>
-    <hyperlink ref="B173" r:id="rId343"/>
-    <hyperlink ref="E173" r:id="rId344"/>
-    <hyperlink ref="B174" r:id="rId345"/>
-    <hyperlink ref="E174" r:id="rId346"/>
-    <hyperlink ref="B175" r:id="rId347"/>
-    <hyperlink ref="E175" r:id="rId348"/>
-    <hyperlink ref="B176" r:id="rId349"/>
-    <hyperlink ref="E176" r:id="rId350"/>
-    <hyperlink ref="B177" r:id="rId351"/>
-    <hyperlink ref="E177" r:id="rId352"/>
-    <hyperlink ref="B178" r:id="rId353"/>
-    <hyperlink ref="E178" r:id="rId354"/>
-    <hyperlink ref="B179" r:id="rId355"/>
-    <hyperlink ref="E179" r:id="rId356"/>
-    <hyperlink ref="B180" r:id="rId357"/>
-    <hyperlink ref="E180" r:id="rId358"/>
-    <hyperlink ref="B181" r:id="rId359"/>
-    <hyperlink ref="E181" r:id="rId360"/>
-    <hyperlink ref="B182" r:id="rId361"/>
-    <hyperlink ref="E182" r:id="rId362"/>
-    <hyperlink ref="B183" r:id="rId363"/>
-    <hyperlink ref="E183" r:id="rId364"/>
-    <hyperlink ref="B184" r:id="rId365"/>
-    <hyperlink ref="E184" r:id="rId366"/>
-    <hyperlink ref="B185" r:id="rId367"/>
-    <hyperlink ref="E185" r:id="rId368"/>
-    <hyperlink ref="B186" r:id="rId369"/>
-    <hyperlink ref="E186" r:id="rId370"/>
-    <hyperlink ref="B187" r:id="rId371"/>
-    <hyperlink ref="E187" r:id="rId372"/>
-    <hyperlink ref="B188" r:id="rId373"/>
-    <hyperlink ref="E188" r:id="rId374"/>
-    <hyperlink ref="B189" r:id="rId375"/>
-    <hyperlink ref="E189" r:id="rId376"/>
-    <hyperlink ref="B190" r:id="rId377"/>
-    <hyperlink ref="E190" r:id="rId378"/>
-    <hyperlink ref="B191" r:id="rId379"/>
-    <hyperlink ref="E191" r:id="rId380"/>
-    <hyperlink ref="B192" r:id="rId381"/>
-    <hyperlink ref="E192" r:id="rId382"/>
-    <hyperlink ref="B193" r:id="rId383"/>
-    <hyperlink ref="E193" r:id="rId384"/>
-    <hyperlink ref="B194" r:id="rId385"/>
-    <hyperlink ref="E194" r:id="rId386"/>
-    <hyperlink ref="B195" r:id="rId387"/>
-    <hyperlink ref="E195" r:id="rId388"/>
-    <hyperlink ref="B196" r:id="rId389"/>
-    <hyperlink ref="E196" r:id="rId390"/>
-    <hyperlink ref="B197" r:id="rId391"/>
-    <hyperlink ref="E197" r:id="rId392"/>
-    <hyperlink ref="B198" r:id="rId393"/>
-    <hyperlink ref="E198" r:id="rId394"/>
-    <hyperlink ref="B199" r:id="rId395"/>
-    <hyperlink ref="E199" r:id="rId396"/>
-    <hyperlink ref="B200" r:id="rId397"/>
-    <hyperlink ref="E200" r:id="rId398"/>
-    <hyperlink ref="B201" r:id="rId399"/>
-    <hyperlink ref="E201" r:id="rId400"/>
-    <hyperlink ref="B202" r:id="rId401"/>
-    <hyperlink ref="E202" r:id="rId402"/>
-    <hyperlink ref="B203" r:id="rId403"/>
-    <hyperlink ref="E203" r:id="rId404"/>
-    <hyperlink ref="B204" r:id="rId405"/>
-    <hyperlink ref="E204" r:id="rId406"/>
-    <hyperlink ref="B205" r:id="rId407"/>
-    <hyperlink ref="E205" r:id="rId408"/>
-    <hyperlink ref="B206" r:id="rId409"/>
-    <hyperlink ref="E206" r:id="rId410"/>
-    <hyperlink ref="B207" r:id="rId411"/>
-    <hyperlink ref="E207" r:id="rId412"/>
-    <hyperlink ref="B208" r:id="rId413"/>
-    <hyperlink ref="E208" r:id="rId414"/>
-    <hyperlink ref="B209" r:id="rId415"/>
-    <hyperlink ref="E209" r:id="rId416"/>
-    <hyperlink ref="B210" r:id="rId417"/>
-    <hyperlink ref="E210" r:id="rId418"/>
-    <hyperlink ref="B211" r:id="rId419"/>
-    <hyperlink ref="E211" r:id="rId420"/>
-    <hyperlink ref="B212" r:id="rId421"/>
-    <hyperlink ref="E212" r:id="rId422"/>
-    <hyperlink ref="B213" r:id="rId423"/>
-    <hyperlink ref="E213" r:id="rId424"/>
-    <hyperlink ref="B214" r:id="rId425"/>
-    <hyperlink ref="E214" r:id="rId426"/>
-    <hyperlink ref="B215" r:id="rId427"/>
-    <hyperlink ref="E215" r:id="rId428"/>
-    <hyperlink ref="B216" r:id="rId429"/>
-    <hyperlink ref="E216" r:id="rId430"/>
-    <hyperlink ref="B217" r:id="rId431"/>
-    <hyperlink ref="E217" r:id="rId432"/>
-    <hyperlink ref="B218" r:id="rId433"/>
-    <hyperlink ref="E218" r:id="rId434"/>
-    <hyperlink ref="B219" r:id="rId435"/>
-    <hyperlink ref="E219" r:id="rId436"/>
-    <hyperlink ref="B220" r:id="rId437"/>
-    <hyperlink ref="E220" r:id="rId438"/>
-    <hyperlink ref="B221" r:id="rId439"/>
-    <hyperlink ref="E221" r:id="rId440"/>
-    <hyperlink ref="B222" r:id="rId441"/>
-    <hyperlink ref="E222" r:id="rId442"/>
-    <hyperlink ref="B223" r:id="rId443"/>
-    <hyperlink ref="E223" r:id="rId444"/>
-    <hyperlink ref="B224" r:id="rId445"/>
-    <hyperlink ref="E224" r:id="rId446"/>
-    <hyperlink ref="B225" r:id="rId447"/>
-    <hyperlink ref="E225" r:id="rId448"/>
-    <hyperlink ref="B226" r:id="rId449"/>
-    <hyperlink ref="E226" r:id="rId450"/>
-    <hyperlink ref="B227" r:id="rId451"/>
-    <hyperlink ref="E227" r:id="rId452"/>
-    <hyperlink ref="B228" r:id="rId453"/>
-    <hyperlink ref="E228" r:id="rId454"/>
-    <hyperlink ref="B229" r:id="rId455"/>
-    <hyperlink ref="E229" r:id="rId456"/>
-    <hyperlink ref="B230" r:id="rId457"/>
-    <hyperlink ref="E230" r:id="rId458"/>
-    <hyperlink ref="B231" r:id="rId459"/>
-    <hyperlink ref="E231" r:id="rId460"/>
-    <hyperlink ref="B232" r:id="rId461"/>
-    <hyperlink ref="E232" r:id="rId462"/>
-    <hyperlink ref="B233" r:id="rId463"/>
-    <hyperlink ref="E233" r:id="rId464"/>
-    <hyperlink ref="B234" r:id="rId465"/>
-    <hyperlink ref="E234" r:id="rId466"/>
-    <hyperlink ref="B235" r:id="rId467"/>
-    <hyperlink ref="E235" r:id="rId468"/>
-    <hyperlink ref="B236" r:id="rId469"/>
-    <hyperlink ref="E236" r:id="rId470"/>
-    <hyperlink ref="B237" r:id="rId471"/>
-    <hyperlink ref="E237" r:id="rId472"/>
-    <hyperlink ref="B238" r:id="rId473"/>
-    <hyperlink ref="E238" r:id="rId474"/>
-    <hyperlink ref="B239" r:id="rId475"/>
-    <hyperlink ref="E239" r:id="rId476"/>
-    <hyperlink ref="B240" r:id="rId477"/>
-    <hyperlink ref="E240" r:id="rId478"/>
-    <hyperlink ref="B241" r:id="rId479"/>
-    <hyperlink ref="E241" r:id="rId480"/>
-    <hyperlink ref="B242" r:id="rId481"/>
-    <hyperlink ref="E242" r:id="rId482"/>
-    <hyperlink ref="B243" r:id="rId483"/>
-    <hyperlink ref="E243" r:id="rId484"/>
-    <hyperlink ref="B244" r:id="rId485"/>
-    <hyperlink ref="E244" r:id="rId486"/>
-    <hyperlink ref="B245" r:id="rId487"/>
-    <hyperlink ref="E245" r:id="rId488"/>
-    <hyperlink ref="B246" r:id="rId489"/>
-    <hyperlink ref="E246" r:id="rId490"/>
-    <hyperlink ref="B247" r:id="rId491"/>
-    <hyperlink ref="E247" r:id="rId492"/>
-    <hyperlink ref="B248" r:id="rId493"/>
-    <hyperlink ref="E248" r:id="rId494"/>
-    <hyperlink ref="B249" r:id="rId495"/>
-    <hyperlink ref="E249" r:id="rId496"/>
-    <hyperlink ref="B250" r:id="rId497"/>
-    <hyperlink ref="E250" r:id="rId498"/>
-    <hyperlink ref="B251" r:id="rId499"/>
-    <hyperlink ref="E251" r:id="rId500"/>
-    <hyperlink ref="B252" r:id="rId501"/>
-    <hyperlink ref="E252" r:id="rId502"/>
-    <hyperlink ref="B253" r:id="rId503"/>
-    <hyperlink ref="E253" r:id="rId504"/>
-    <hyperlink ref="B254" r:id="rId505"/>
-    <hyperlink ref="E254" r:id="rId506"/>
-    <hyperlink ref="B255" r:id="rId507"/>
-    <hyperlink ref="E255" r:id="rId508"/>
-    <hyperlink ref="B256" r:id="rId509"/>
-    <hyperlink ref="E256" r:id="rId510"/>
-    <hyperlink ref="B257" r:id="rId511"/>
-    <hyperlink ref="E257" r:id="rId512"/>
-    <hyperlink ref="B258" r:id="rId513"/>
-    <hyperlink ref="E258" r:id="rId514"/>
-    <hyperlink ref="B259" r:id="rId515"/>
-    <hyperlink ref="E259" r:id="rId516"/>
-    <hyperlink ref="B260" r:id="rId517"/>
-    <hyperlink ref="E260" r:id="rId518"/>
-    <hyperlink ref="B261" r:id="rId519"/>
-    <hyperlink ref="E261" r:id="rId520"/>
-    <hyperlink ref="B262" r:id="rId521"/>
-    <hyperlink ref="E262" r:id="rId522"/>
-    <hyperlink ref="B263" r:id="rId523"/>
-    <hyperlink ref="E263" r:id="rId524"/>
-    <hyperlink ref="B264" r:id="rId525"/>
-    <hyperlink ref="E264" r:id="rId526"/>
-    <hyperlink ref="B265" r:id="rId527"/>
-    <hyperlink ref="E265" r:id="rId528"/>
-    <hyperlink ref="B266" r:id="rId529"/>
-    <hyperlink ref="E266" r:id="rId530"/>
-    <hyperlink ref="B267" r:id="rId531"/>
-    <hyperlink ref="E267" r:id="rId532"/>
-    <hyperlink ref="B268" r:id="rId533"/>
-    <hyperlink ref="E268" r:id="rId534"/>
-    <hyperlink ref="B269" r:id="rId535"/>
-    <hyperlink ref="E269" r:id="rId536"/>
-    <hyperlink ref="B270" r:id="rId537"/>
-    <hyperlink ref="E270" r:id="rId538"/>
-    <hyperlink ref="B271" r:id="rId539"/>
-    <hyperlink ref="E271" r:id="rId540"/>
-    <hyperlink ref="B272" r:id="rId541"/>
-    <hyperlink ref="E272" r:id="rId542"/>
-    <hyperlink ref="B273" r:id="rId543"/>
-    <hyperlink ref="E273" r:id="rId544"/>
-    <hyperlink ref="B274" r:id="rId545"/>
-    <hyperlink ref="E274" r:id="rId546"/>
-    <hyperlink ref="B275" r:id="rId547"/>
-    <hyperlink ref="E275" r:id="rId548"/>
-    <hyperlink ref="B276" r:id="rId549"/>
-    <hyperlink ref="E276" r:id="rId550"/>
-    <hyperlink ref="B277" r:id="rId551"/>
-    <hyperlink ref="E277" r:id="rId552"/>
-    <hyperlink ref="B278" r:id="rId553"/>
-    <hyperlink ref="E278" r:id="rId554"/>
-    <hyperlink ref="B279" r:id="rId555"/>
-    <hyperlink ref="E279" r:id="rId556"/>
-    <hyperlink ref="B280" r:id="rId557"/>
-    <hyperlink ref="E280" r:id="rId558"/>
-    <hyperlink ref="B281" r:id="rId559"/>
-    <hyperlink ref="E281" r:id="rId560"/>
-    <hyperlink ref="B282" r:id="rId561"/>
-    <hyperlink ref="E282" r:id="rId562"/>
-    <hyperlink ref="B283" r:id="rId563"/>
-    <hyperlink ref="E283" r:id="rId564"/>
-    <hyperlink ref="B284" r:id="rId565"/>
-    <hyperlink ref="E284" r:id="rId566"/>
-    <hyperlink ref="B285" r:id="rId567"/>
-    <hyperlink ref="E285" r:id="rId568"/>
-    <hyperlink ref="B286" r:id="rId569"/>
-    <hyperlink ref="E286" r:id="rId570"/>
-    <hyperlink ref="B287" r:id="rId571"/>
-    <hyperlink ref="E287" r:id="rId572"/>
-    <hyperlink ref="B288" r:id="rId573"/>
-    <hyperlink ref="E288" r:id="rId574"/>
-    <hyperlink ref="B289" r:id="rId575"/>
-    <hyperlink ref="E289" r:id="rId576"/>
-    <hyperlink ref="B290" r:id="rId577"/>
-    <hyperlink ref="E290" r:id="rId578"/>
-    <hyperlink ref="B291" r:id="rId579"/>
-    <hyperlink ref="E291" r:id="rId580"/>
-    <hyperlink ref="B292" r:id="rId581"/>
-    <hyperlink ref="E292" r:id="rId582"/>
-    <hyperlink ref="B293" r:id="rId583"/>
-    <hyperlink ref="E293" r:id="rId584"/>
-    <hyperlink ref="B294" r:id="rId585"/>
-    <hyperlink ref="E294" r:id="rId586"/>
-    <hyperlink ref="B295" r:id="rId587"/>
-    <hyperlink ref="E295" r:id="rId588"/>
-    <hyperlink ref="B296" r:id="rId589"/>
-    <hyperlink ref="E296" r:id="rId590"/>
-    <hyperlink ref="B297" r:id="rId591"/>
-    <hyperlink ref="E297" r:id="rId592"/>
-    <hyperlink ref="B298" r:id="rId593"/>
-    <hyperlink ref="E298" r:id="rId594"/>
-    <hyperlink ref="B299" r:id="rId595"/>
-    <hyperlink ref="E299" r:id="rId596"/>
-    <hyperlink ref="B300" r:id="rId597"/>
-    <hyperlink ref="E300" r:id="rId598"/>
-    <hyperlink ref="B301" r:id="rId599"/>
-    <hyperlink ref="E301" r:id="rId600"/>
-    <hyperlink ref="B302" r:id="rId601"/>
-    <hyperlink ref="E302" r:id="rId602"/>
-    <hyperlink ref="B303" r:id="rId603"/>
-    <hyperlink ref="E303" r:id="rId604"/>
-    <hyperlink ref="B304" r:id="rId605"/>
-    <hyperlink ref="E304" r:id="rId606"/>
-    <hyperlink ref="B305" r:id="rId607"/>
-    <hyperlink ref="E305" r:id="rId608"/>
-    <hyperlink ref="B306" r:id="rId609"/>
-    <hyperlink ref="E306" r:id="rId610"/>
-    <hyperlink ref="B307" r:id="rId611"/>
-    <hyperlink ref="E307" r:id="rId612"/>
-    <hyperlink ref="B308" r:id="rId613"/>
-    <hyperlink ref="E308" r:id="rId614"/>
-    <hyperlink ref="B309" r:id="rId615"/>
-    <hyperlink ref="E309" r:id="rId616"/>
-    <hyperlink ref="B310" r:id="rId617"/>
-    <hyperlink ref="E310" r:id="rId618"/>
-    <hyperlink ref="B311" r:id="rId619"/>
-    <hyperlink ref="E311" r:id="rId620"/>
-    <hyperlink ref="B312" r:id="rId621"/>
-    <hyperlink ref="E312" r:id="rId622"/>
-    <hyperlink ref="B313" r:id="rId623"/>
-    <hyperlink ref="E313" r:id="rId624"/>
-    <hyperlink ref="B314" r:id="rId625"/>
-    <hyperlink ref="E314" r:id="rId626"/>
-    <hyperlink ref="B315" r:id="rId627"/>
-    <hyperlink ref="E315" r:id="rId628"/>
-    <hyperlink ref="B316" r:id="rId629"/>
-    <hyperlink ref="E316" r:id="rId630"/>
-    <hyperlink ref="B317" r:id="rId631"/>
-    <hyperlink ref="E317" r:id="rId632"/>
-    <hyperlink ref="B318" r:id="rId633"/>
-    <hyperlink ref="E318" r:id="rId634"/>
-    <hyperlink ref="B319" r:id="rId635"/>
-    <hyperlink ref="E319" r:id="rId636"/>
-    <hyperlink ref="B320" r:id="rId637"/>
-    <hyperlink ref="E320" r:id="rId638"/>
-    <hyperlink ref="B321" r:id="rId639"/>
-    <hyperlink ref="E321" r:id="rId640"/>
-    <hyperlink ref="B322" r:id="rId641"/>
-    <hyperlink ref="E322" r:id="rId642"/>
-    <hyperlink ref="B323" r:id="rId643"/>
-    <hyperlink ref="E323" r:id="rId644"/>
-    <hyperlink ref="B324" r:id="rId645"/>
-    <hyperlink ref="E324" r:id="rId646"/>
-    <hyperlink ref="B325" r:id="rId647"/>
-    <hyperlink ref="E325" r:id="rId648"/>
-    <hyperlink ref="B326" r:id="rId649"/>
-    <hyperlink ref="E326" r:id="rId650"/>
-    <hyperlink ref="B327" r:id="rId651"/>
-    <hyperlink ref="E327" r:id="rId652"/>
-    <hyperlink ref="B328" r:id="rId653"/>
-    <hyperlink ref="E328" r:id="rId654"/>
-    <hyperlink ref="B329" r:id="rId655"/>
-    <hyperlink ref="E329" r:id="rId656"/>
-    <hyperlink ref="B330" r:id="rId657"/>
-    <hyperlink ref="E330" r:id="rId658"/>
-    <hyperlink ref="B331" r:id="rId659"/>
-    <hyperlink ref="E331" r:id="rId660"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="B226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="B227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="B228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="B229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="B230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="B231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="B232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="B233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="B234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="B235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="B236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="B237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="B238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="B239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="B240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="B241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="B242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="B243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="B244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="B245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="B246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="B247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="B248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="B249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="B250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="B251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="B252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="B253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="B254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="B255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="B256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="B257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="B258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="B259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="B260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="B261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="B262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="B263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="B264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="B265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="B266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="B267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="B268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="B269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="B270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="B271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="B272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="B273" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="B274" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="B275" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="B276" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="B277" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="B278" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="B279" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="B280" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="B281" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="B282" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="B283" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="B284" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="B285" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="B286" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="B287" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="B288" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="B289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="B290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="B291" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="B292" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="B293" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="B294" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="B295" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="B296" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="B297" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="B298" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="B299" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="B300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="B301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="B302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="B303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="B304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="B305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="B306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="B307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="B308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="B309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="B310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="B311" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="B312" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="B313" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="B314" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="B315" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="B316" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="B317" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="B318" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="B319" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="B320" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="B321" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="B322" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="B323" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="B324" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="B325" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="B326" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="B327" r:id="rId326" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="B328" r:id="rId327" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="B329" r:id="rId328" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="B330" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="B331" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="E7" r:id="rId331" xr:uid="{ED4190A2-3AC9-7744-9048-98332D6D2471}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
